--- a/data/manager.xlsx
+++ b/data/manager.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +453,16 @@
           <t>name</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dt_insertion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -462,6 +476,14 @@
           <t>Petit</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa5zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\x9c0\x0c\xdd\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3KU\x969~\x9el\xe8\xdf\xdd\x98a\x11(\xcc`\rO\xcf\x92\x0c\xfd\xfd\xfd\x87~\xe1\x88\x9c#\xc9l\x83L6\xe8bA\x17\xcd\x964r\xf0w\x9d\xb5\x98\xf8\x9c,l\x1a5\xe9\xaa\xacY\xa6\xf6\xfd%\xbd\xb2I\xa10q\xf8&lt;a\x9a\xa1\xa42eN)\xe9\x97\xd96\xe7\xa6\x07K8\x83L0\xb5\x92\xd5\x83\x8bA\x8a\x8b\xae\x104^%\xca\xe8\'\x9e\x820F\xc6\xb84#\xb8\x8b\x8d0\x0b46\xf0\xe2\x0eX\xc8a\x85\xe9\n\x17@e\x13\x15\xbc\x8f\x16\xa0&gt;"\xc4\x02\x9c\xdb&lt;\x82f\x05"\xc4\xe9@\xd9\x8e\xc6\xdeC\x82\x92\x1c\x03\x82\xe1\x0c\x833\x17\xda\x83qA\x8c\x19\x8a\xd9it\xe8\x80\x8c \xb9\xc8Fh\x0fwu0Y"\xc0M\xae\xdc\x17{\x85\x17u\x06\xf2\x0b\x19\x02\xe8Y\xc7=\x8c\xfa\x16\xb5\xa8y\x18\x95J0\xa4\nZ\xb3\x9br\\)W\x19\xae\xb1D\xa8\x18.Ah\x1c\\\x18\xa3b\n\xb9\x82\x80\x02/\xf0\xc52\xf3\xfa\xa2\x14\xee\xfa\x88\x9a\x0c\xdd\x01o\xec9\x0b\xd7$\xd0\x8f\xcf\xfe2?M\x0e\xba\xce\x8e\xa7\xc9\x91"\xd5\xac\x801\xe5c\x96\xd4\x9c- \xfa%\xe3\x867\x97E\x05\xf7\x05R\xa8BCf\xb7L\t\xe7\x99\x92\xde\x0cU&gt;\xa1v\x94\xa4\x8f"\x15\xc4\x1b\xaf3jK\x96\xed\r\x1d#"n\xe8QN\x06\x8e\xb0\x16\x08,s%n\xadi\x8f\xc9\x87\x18}y29\x03H9,&gt;\xf2\xc6s\'\xf1\x82{\xc6\xc8"\xbe\xfc=\xb5\x1f\xad\xdd\x11]x\xca\x06\xea\xd3\xe8\xe2\x08\x04\x8dI\xb2$\x9c\x01\x8c\xba\xb3(A\xd1\\\xf0\xc5$\x91\xa0\xbfh\x84\x08\xa2\xc6G\xb4\x1a("0\x81G\x7f\xc6\x08\x1e:\xc8\xde\xdc8*\xba\x89\x1f}\xac\t\xbb\xabz)\xc6\x11h\x12.\xc3S\x96AZf\x9f\xa9\xde\xd3\x9c\xbd23\x96e\xc8\x89\xb65+\xadD\xcf\x05w\xb9\xb3\xb2\xa5g\xb5}\x97eh\xfe\xcf\xf2\xf6\xd3d\xaf\xbc\xe9y}\xff\xa7\xe6o\xa1\xbf\x9f\xed\x85M\xfb\xfe\xf9S\xcdMe+f9/\xe6\xcd4\xe8p0\xa4\x83\xf7^t\xe2IW\xef\xbd\xdez\xd3h\x93\xe1\xbd\xf2\xf2!\xbeK\x1f\r\xd3\x1d\x89O9\xa4;\x12\x9frH\xed?\xe4\x9c\xc4\x0e\x87\x03j?|7D\xea@n\xa6\xdf\x1b\x06\x82\xf7,\xc79\x83M\xf1\x9d\xcf\xd4\x7f\x7fx\xf0\x1e\x86}\x10d{\x13\xc3\xc5ce\xeb\xc6\xc8\xdd\xbevJ\xf2\xb7\xda\x8d\xa1\xf6Cu\xea\xef\xf0G\x87\xff\xb3\x7f\xdc\x1d@E\xd2T\xb9\xf9\x00\x00e3IDATx\xda\xed\xfd\xd9\xb3e\xf9u\xdf\x89}\xd6o\xd8{\x9fs\xee\x90\x995dUa\x06\x01\x02 E\x12\x1cDR"EJ=\xa8\xedn\xa9\xa3#\xe4\xf6\x93#\xfcb\xff\x19\x8e\xf0\x8b\xfd\xe0\x07GX\x8ep\xb8\x1d\x1dr+\xd4mM\x94(R\x14g\x8a\x13D\x90 \x00\x12#\t\x02\xa8y\xcc\xaa\xca\xcc;\x9cs\xf6\xde\xbfa\xf9a\xfd\xf6\xb9\xb7@I\xa6\xd8\x92\xea&amp;\xcd\x1d\x01T\xd6\xad\x9bg\xd8{\xfd\xd6\xf0]\xdf\xf5]\xa2\xaa\xca\x9f\xf5K\x01i\x7fT%\x95BI\x89\xbe\xef\xb9\xf7\xc6\x1b&lt;\xff\xc2s\xc4\xe2\xd9_n\xb9\xbf\xbf\xcf\xf9\xd9\x03\xf6\xbb=\xd34\x11Cd=\xac\xf1\xb1\xe3\xf9\x97_\xe6o\xfe\xcd\xff\x9a\xd3[\xb7x\xfc\xb1\xc7\x10\xe7\x18\x86\x1eD\x90\xe5\r\xfe\xfc\x02@\xfeL\x1b\x96*yN\xcc\x02A\x84\xfd\xe5%\xf38\xf1\xb5o~\x9d\xe3\xa3c\x8e\x8f\x8f\xf9\xfa\x1f\xfd!\xcf}\xf3k\xbc\xf0\xcdgy\xeb\xc1\xdb\xcc\xf3\xc4\xb4\xdb\xb3\xdf\xef\xf1!\xa0E\x99\xf6#\xc3\xaa\xe7\xf1\xbbwy\xfc\x89\'y\xfa\x99g\xf8\x9e\xef\xff\x01r.|\xe7w~\x0fwn\xdf&amp;t\xf1\xea\xa6\xca\x9f\x1b\xd9\x9f=\xc3REke\xda\xefy\xfb\xed\xb7\xb8w\xef-.D\x99\xcf\xce8{\xfd\r\xf6\x17\x97\xfc\xd1K\xcf\xf3\xd4\xdd\'y\xe3\xf5\xd7y\xe1\xf9or\xfe\xf0&gt;y\xced\xadx\'\xe4\x94)\xb9\x12b\xa4h%\x88\xc3{\x8f\x8f\x8e\x9c\x12\xdeG\x8eN\x8e\xb9s\xe71\xbe\xe3;&gt;\xc9\xf7}\xcf\xf7\xf3\xd1\xbf\xf01\x8eNN\xf1\xde#\xce!",\xb7\xf6\xff\x1f\r\xed\xcf\x94a\xa9*\xf3d\x1e\xe7\x85\xaf\x7f\x8d?|\xf6\x1b\xbcv\xefuv\xe7;\xb6\xdbK\xdez\xed5\xcevg\xcc\xfb\x89\xdd8\xe1P\x84\nUQ\x84)\xcf\xe4\x9cI)\x93s\xc1\x01U\x15\x04\xa2\x8ft\xc1\x13\xfb\x8e\x10\x02A\x1ci\x9eq\xceq\xfa\xf8m&gt;\xf8\xfe\x0f\xf3\x97~\xf4Gy\xfa\x99\xf7\xf2\xcc\x07&gt;\xc8zs\xc40\x0c8gF\t\x1c\x8cM\x84\x16\x9e\xff\xec\x1a\xdc\x9f\t\xc3Z\xbe\xc2&lt;M|\xf3\xeb_\xe7\xe5\x97^\xe2\x95\x17\x9f\xe5\xf7~\xffs\x9c=x@Vx\xfb\xad\xb7\xb9\xdco\xc9\xd3D.\x99\xae\x1b\xb8}zJ\x17"C\xec9\xdf^\xf0\xf0\xe2\x9c\x943\xa8RK\x01U\xc49j\xad\xd4\xac8\x078\x87\xf3\x81\xd5j@\x00\xadJt\x1e\xf5\xca\xd0\xf7\x9c\x9e\xde\xe2\xeeS\xcf\xf0\x9e\xf7\xbd\x9f\x8f|\xe4\xa3|\xe4c\x1f\xe3\xa3\x1f\xfb\x04}\xdf_\xff\xc4hJH\x8c\x88\xb8w\xfb\xf6\xfd\x07\xb9\x1e}\xc3R\xa5\x94\xc2\xc3\xb7\xdf\xe6+_\xf9\x12_\xfb\xda\x1f\xf2\xfcs\xcf\xf3\xea\xab/\xf0\xd6\xbd7\xd8\x8f\x13\xfbif\x1aGR\xca\x00\x84\xe0\x891r\xfb\xe4\x94\xa3\xf5\x86\x18"\xe7\xdb3\xce/\xb6\x14\xad\x08 \n\xb5(\xa9&amp;\x82sP\x05\xa5RQR\xf3j\xb1\x8bx\x1f\t!Pj!xG\xf0\x91\xe0\x1d\xce;\x8e\x8f\x8ex\xec\xf1\'\xf8\xe8\xc7&gt;\xc6\'\xbe\xe3;y\xea\xee\xd3\xdcy\xfcqNo\xddf\xe8\x07b\x88\x0c\x9bu\xf3b\x7f\xb6\xbc\xd7#mX\xaaJ\xce\x89\xe7\xbe\xfe\r~\xf5_\xfe2_\xf9\xeaWx\xe9\xf9\xe7I\xb90N\x97\x8c\xe3HU\xa1\xe4\xba\xfc\r\x00rN\x08\xca\xd1f\x83\x13a\xb3YSj\xe1\xf2\xf2\x12\xc5\xa1\xb5\xd2\x05\x8f\x13G\xa9\x19\'\x8e\xe0\x03\x00\x15(\xa52\xa5\x99q\x9a(U\t1\xe2C \xe7\x0c\n}\xdf\xe1\xbd\'x!8G*\x95U?\xd0\x0f=\'w\xee\xf0\xc4\x13w\xf9\xd0\x87?\xc23\xcf\xbc\x87\xbf\xf4\x97\xff2\xb7o\xdd\xa6\x1f\x86?S\xc6\xf5\xc8\x1a\x966O\xf5\x8d\xaf\xfd!?\xf5O\xfe1\xff\xeaS\xbf\xc9\xd9~\x0b\xb5\xe2$\xa2R\x19\xf7{\xb4ZX\x0b1\xe2ZX\x9b\xa6\x11\x872\xf4\x03!\x06\xfa\x18,\xd7R\xc8\xb9\xe0\x9d\xe0Ep"\x84\xd0B\x958R\xae\x94\xaa\x94\xaa(J\xad\xca\x94\n\xfby\xc29\xa1\xeb{\xb4*%g|\x8c\x84.\xe0\xb1\xbf\xefE\x10\'\xa8\x13\xc49b\x1cX\xad\x06&gt;\xfc\x91o\xe3\xaf\xfe\xd8_\xe5\xaf\xfc\xf8_\xe5\xe4\xe4\x96\xbd\xd5\x9f\x01\x03\x0b\xef\xf6\x07\xf8\xd3\\\xaa\xca\xe5\xc5\x05_\xfd\x83/\xf3\xd3?\xf9\x13\xfc\xd6o\xfe&amp;o=8\x03\'\x1c\xad\xd7\xa0\x19\x04D\x1c\xa5&amp;\x14\xf0\xce\xd1\xc5@\xae\x05\xef\x06\x82w\x0c]\xcf\xf1zC.\x89\x92\x13\xd4\xcc*\x06\xa2\x0f\x94Tp\xde\xd3w\x91\xaa\x15\x11\xa1\xc4J.\x05\x05j-\xcc\xb9\xe2]`\xe8\x1c\xdbq\xc7\xb8\xdf\xd1\x0f+B\x0cT\xad\xccSB\x04\xbc\xf7TqhQ\xf0\x0e/\x0e)#\x0f\xb6\x97|\xfe\xec\x8c\xb7\xde\xb8\xc7&lt;\x17\xfe\xca\x8f\xffU\xee\xdc\xb9\x8dkU\xe5\xa3|=\x92\x86UJ\xe17~\xf5W\xf8\xe7\xff\xe2\x9f\xf1\xc5/\xfc&gt;\xd3\x94\x196\x1b\x82\x13D\xd5*\xb9jy\xcbf\xbd\xc6;G\x08\x81&gt;8\x9c(\xde9\x86~\xc0{O\xc9\t\xaf\x90\x9d\x80D\x9c\x17&lt;\x10;O\xec\x02\xc1AU\xa1\xaa\xb2\xee;jUT\x15\x1f&lt;\xe343\xa7\x8a\xaa2\x04\xc7\xc5~fN\x99\xac\x8a\xf3\x1e\x11\xc59\x8fs\x8eR+\xbbq\xa4\xa0\x04\xe7\xe8| \x95B\xce\x99\xed\xc5\x05\xe7\x97\xff\x13\xbb1\xf1c?\xf6#\xbc\xef}\xef}\xe4\xab\xc6G\xcb\xb0T\xa9Zy\xed\xe5\x97\xf8\xe5_\xfeY\xfe\xe0K_\xc0\xe18&gt;9\xa1\xe6BN\t\xf1\xce`\x81`F\xe3\x1c8Q\xb4&amp;\xd2\xac\xf4\xd1\x12\xed}-\x0c}\x0f\xb5B-\x0c]$:\x07\xb5\xd2w\x11\xef\x04\x11\x08\xc1!\xce\x91KF\x9ck?wx\xf1\xe4\xbe\xc7\x07\xcf&lt;OTUv\xfb\x99\x8b\xfd\xcc\xd9\xe5\x96]J\xe4*\x88\xf7\x88Bp\x9e\xce\x07\xf6\xb3\xe5eS.\xe4Z\xa9E\x99\xea\xc4K/&gt;\xc7?\xfe\x89\xbf\xcf\xfd\xfbo\xf2\xb7\xfe\xd6\xdf\xe2\x99g\x9ey\xa4\xb1\xfcG\xc6\xb0T-\x07:?;\xe7\'~\xe2\x1f\xf0\xa5/\xfc&gt;\xa2\x82s\x9ey?R\xe6\x19\xf1\x0e\xef\xbcU\x8a9\xd3y\x8f\xf7\x0e\xd5J\xf4\x0e\x87\xe0\x9c\xe0\xbc\xc3;\x88N\xa8Uq\xc1q&lt;t\xacb\x87\x13%\xc6@\xf0\x8eR2\x88Z\xe8\x0b\r\xbfrB\x17#N\x84\xa2\n"\xd4\xda\xe3\\\xa5\x0b\x1d\x17\xdb\x91\xb3\xed\x8e\xb3\xed\xc8\xc5v\xe4b\x9b\x98k\xa6\xe2\xe8cD\x04\xc6i$W%\xd7\x82V\xf3\xc0*\xf0\xe2\x0b\xcf\xf2\xab\xbf\xf2\xcb|\xf8\x83\x1f\xe4\xf1\xc7\x1e\xa3\xeb\xfbG6$&gt;\x12\x86\xa5\xaa\xa0\xb0\xdd^\xf2\xb3\xff\xfc\x9f\xf2s?\xfb3\xec\xc7\x99\x9c\nU\'\xbc3\xb4[Q(\x15\xaf\xc2\xaa\x0f\x1c\xafV\x0c! \x0e\xaah\xf3^\x8e\xbe\x8f8U\x82x\x82\x1b\xa8(\x9dxBp\xf8f&lt;C\x17\x90ZA*8\xcfvL\xf6{}\xe4\xa8\xef\x08\xce\xe3\x83G\xb1\xa8U\x8b\xc1\x12\xc7\xeb5O\xdc&gt;e?\xef\x19\xc7\x99\x87\x0f\xb7\xbcu\xb9\xe3\xe1~fJ\x8a\x88\xc7\xc9\x8aT*\xb5*E+\xf3&lt;3\xcf3\xc7\xfd\t\xf3&lt;\xf2\xcdo~\x83\x1f\x19\x7f\x8c\xd8u\x7fnX\xff\xa1\xaf7_}\x8d_\xfa\xa5\x9f\xe3\'\xfe\xf1?\xe0\xec\xe1CJi\x0f\xc9yJ\xc9x\xe7\xe8\x83g\x1d&lt;\x8fm6\x0cC\xa4\xeb\x02\xab\xd8\xa1(s\x9a\xad\xca\xf3\x9e\xae\x0b\x04\xe7\xe9\x83aNV1Z\xaf\xaf\x94B\x0c\x01\xa9\x85\x18\x1d]\xe7@\x84\x93\x8dc\xca\x19\xa8\xac\xbbH\x17\xed\xd6\xf9\xe0\x11\'\x88[\x13\x9d\xc7;O\xa9\x85\xac\'\xccsb\x7f{\xe4\xec\xe2\x82\xfb\xe7[\xce.\'^;\xdf\xf2p?S\xab\x905SK\xc5;G\xaa\xcan\xbf\xe7\xd5\xd7^\xe5_\xfe\xea\xbf\xe4\xfb\x7f\xf0\x87\xf9\xe1\x1f\xfaAD\xe4\x914\xaeG\xc2\xb0J\xce|\xf6w\x7f\x9b\x9f\xf9\xa9\x7f\xca\xbd{oPs\xc59\x8fR\xc9\xb9\xa2\xb5\xd0y\xc7\xe9\x10x\xf2\xd6\tO\xdd:a\xe8=\xd1{\xbc\x0f\x8cs&amp;\'\xc3\x89\x86!RUQ\x85&gt;\x06\xba\xaeC\x11V\xc31\xab~`\x1a\'T\x0b\xce)!\x04\xbc\x07\xb4\xa0\xb9\xb2\xea\x9d\x19^\x8c\xf4]\xc49\xa1\xd6b\xec\x06\'\x0c!\xd0\xf7="Pj\xa1\x96J9:\xe2\xa9\xc7nqqy\xc9\xc5\xf9\x9e\xbbg\x17\xbc\xf4\xe6C^{\xb8\xe3\xed]f,\x95\x05\xef)\xa5\xe2\\\xe1\xde\xeb\xaf\xf2\x8b?\xf7\xb3\xbc\xff}\xef\xe5\xa9\xa7\x9e\xa2\xeb\xbaw\xfb\x11\xfc;_7\xda\xb0\x16\x88\xed\xe5\x97_\xe4\xe7~\xeegx\xf5\xb5\xd7IY\xa9\x08y\x9e-d\xf5\x1d+\xdf\xf1\xc4\xe9\x8a\xa7\xee\x1cq\xeb\xf8\x84[GkV\xb1#6o\xa2\x08\xbb\xfd\xc4\x9c*xO\x08\x01\'\x06A\x84n@Q\x03D\xbd\xb0&gt;Z\x13\x83\xc7\x8b\xe5e\xa5\x14j.\xc8P\x91\x9a(X\xb5\xd9\x87@\x1f#\xb5\x16\x0b\xb3\xe2p\xe2\xac\x00\x10\xe8\xbc\x07_[\xfe\x14\xe9c\xc7\xc9Q\xe6\xe8\xf4\x88\xa3\xe3\r\x8f\xdf\xbf\xe0\x85{\xf7\xb9w~\xc9&gt;UR\xe7\x98rbN\t\x10~\xfd7~\x95\x8f}\xe2\xe3\xfc\xcd\xbf\xf17\xac\x01\xde\xfa\x8d\x8f\xcauc\rK\xd5\xca\xfa\xf3\xb3\x87\xfc\xf3\x9f\xfeI\xbe\xf4\xa5/2\xa7\x99\xaa\xad\xfasB\xf0\x91\x95s|\xf8\xa9[&lt;s{\xc3\x9d\xe3\rG\xc7\xc7\xac\x865}\x88h\xad\xe0\x1d\xa1\xeb9:*\x86\xaa\x8b\x90sA\xf0\x96\x93\x01!FV\xc3\xc0\xfa\xf8\x14E\x89N\x90\x92p\xa5 *\xa4&lt;\x81V\xa8\x19\xd5\xca~\x1a\xe9\xbc\x85Sq\x1e\xf1V\xfdiU\x82\x0f\xd4\x9aqb`\xa8s\x81*\x80$\xe2R4t\x91;\x9b\r\xa7\xc7=\xcf\xdf{\x9b\xe7^9\xe3\xde\xe5\x0e\x9cC\xac\xc4\xe0\xfc\xec\x82_\xfa\xc5\x9fg5\xf4\xfc\xf5\xff\xe2\x7f\xc9f\xb3y\xa4B\xe2\x8d5,\x11\xe1\x8d\xd7^\xe3\xe7\x7f\xeeg\xf8\xd9\x9f\xfd\x19\xa6q$W\x03(\x9d@\xf0\x81M\xefy\xff\xddS&gt;\xf2\x9e\'\xb8\xbd\x1e8=:\xa1\x1b\x06B\x88x\x11\xaa\x16T\x04\xdf\xf5\xac6=!\x0e\x88\xc56|\xec\x89\xb1\xb7V\x8d\x98\xdd\x84nE\xec\x03%\xcd\xe8&lt;R\xe7DM\x99X"5\xcf\x06\xb6\xe6L\x0c\x11q\xadj\xac\xf5\xe0\xad$8h\x85F\x15\xccP\xc4\xe1T\x08\x01\x8a8\xa2\n\xa7\xdd\xc0Q\xb7a\xd5E\x8e\x87\x15A=\xd3\xcb\x99\x07\xfb\x19\xa8T\xad\x04\x1fy\xe1\xb9g\xf9\xd2\x97\xbf\xcc_\xfe\x91\xbf\xc2f\xb3y\xa4z\x8a7\xd6\xb0T\x95W^~\x89_\xfa\xc5_\xe4\xc1\xdb\xf7\xa9\n\xe0\xf0NA\x1cO\x1c\xad\xf9\xd83\x8f\xf3\xfe\'os\xf7\xce-\xfa\x18\x08!\x12\x9cUu\xf6\x10&lt;]?\xe0\xbb\x81\xb89"\xf8\x9e~\xb5\xa6?Z#\xe2\t&gt;\x92s\xc2\x87H-J\xd7\xaf\x10\'\xa4i\xa4\x8c\x81\xec\'\xdc\x00\xf3nK\x15\xc1\x15GQkF+\xe0|D)h\xadTG\xa3\xe0\x18\xd5F\x8b\xe2C\xc0\x89\xa3\nD\xd7\xe3{G@(\xa5\x90\xbd\xbd\xef0\x0c\xc4&gt;"]\xc7\x17\x9f\x7f\x95\x8b\xfd\xc44\'@\xb9\xd8*_\xfc\xd2\xef\xf3\x8b\xbf\xf4\x0b\xfc\x8d\xff\xeaor\xe7\xce\x9dw\xfb\xb1\xfc\x89\xaf\x1bkX\x17\xe7\xe7\xfc\xd6o\xff\x16/\xbe\xf4\xa2E!\x15\xbcw\xe4q\xe2\xf6j\xe0\x93\x1f|\x86\x0f\xdf\xbd\xc3\xd1\xf1\x86.,\x8c\x02!\x04#\t;\xef\xe9\xba\x01\'\x91~}Lw|J\x17{\xbaa\x85\xeb\x07\xba8\xd0\xf7\x1d\xb9f\xb46\x17\xa3\x8a H\xa9\xe4\x90\xf0\xe2\x11\xa0\xa6D\x9a\xf7h\xad\xe6\x81\xda\xcfs\xc9\xa4\xa2\x88\x16\xbc(*\xe0\x9c\x15\x0c\xa5\xd8\xeb\x16\x14\x17#\xce\x07\xc4\x05b\x0c\xd4ZI~"t\x918D\x08\x9e9\x0b\x17\xd3\xc4\x0b\xf7\x1e\xf2\xe0bo\r\xf6\x92y\xf1\x85\x17\xf8\xbd\xcf~\x96\x1f\xfa\xc1\x1fbs\xb4\xa1\xef\xfa\xff\x99w\xf6?\xceu\xf3\x0cK\x95R+\xbf\xf3\xdb\xbf\xcd\xa7&gt;\xf5\x9b\x8c\xd3\x08\xd5@\xcb\x94\x12\xd1\x0b\x9f\xfc\xd8\xfb\xf9\xe8\x07\xeer&lt;\xf4\x84\xae;\xb0\x0f\xc4)\xe2\r\x82\x88\xbe#\xf4+b\xdc\xd0\xad\x8f\x88\xab#\x86\xd5\x8a\x18\x07\xfc\xd0#X~\x14\xc4\x91)x\xe7\xa89SKF\xac\xbb\x88\xf3\x0e\xe7&lt;\xe2\xb7\xd6aq\x02\x98a\xd5b\xe0f\x08\xa1\x81\xf7\tE\xd0\xe0\x11\x11\xbc\x8f\xa8\xf3\xb8\x10\t]\x07\xce\xa1\x15\xbc\x0b \x95\xd8\x8bA\x13%1\xf4=O\xdd&gt;\xe5c\xef}\x9a\xed~"e\xc3\xce\xc6q$\xcf\x89\xaf~\xf5\xcb|\xf6\xb3\xbf\xc3\xe9\xad[&lt;\xf1\xc4\x93xw\xf39\\7\xcb\xb0\x9aQ\xbd\xfc\xd2K\xfc\xab_\xff5\xde|\xe5\x15(\x05\x80\x94*\x82\xf2\xf1\x0f\xbd\x97o\x7f\xdf\xd3\xdc&gt;96\xef \x0e\xef\x17D\xbd\xc3\xb9@\xf0\x01\xef,4z\x1f\x08\xb1\xc7\xfb\x80\x88C\x9cPk\xc5{ON\tM3*P\x9c\x07\'\x94T\xc8\xa5\x18%\xd9y\xb4V|\x88\xb8\xd8\xa3I\x81\x82H\xfb\xbbTT\xb1\xc4\x1d1O\xa6\xa0Z\x10\x17\xf0\xb1G|\xc0\x85\x0eu@\xc9\xa44R\xc5\x11c\x8f\x17\xcf\xb8\xbf\xb4\x9c\xca\t\xb7V=\xefy\xec6\xbb\xa9\xb2\xdd\xcf\x0c}O\xae\xca\x83\xf33&gt;\xf7\xfb\x9f\xe7#\x1f\xfb\x04\x9b\xcd\x11GGG7\xbe\xdds\xb3L_\x84y\x9ax\xf3\x8d\xd7\xd8\xcf{v\xfb\x1d\x00\xe3\xb8gJ\x13\x8f\xdf&gt;\xe1\xbb&gt;\xf4~\x1e\xbb}\x9b\xae\x11\xe5\x9c8\xbc\x04\x9c\x8b\x08\xd2N\xb3\x18aO\x1bgk\x9e\xcc\x80\x8a\x02\x0e\xa15\x92\x9dg\x1e\xb7\xec.\x1e0\x8f\x97L\xbb\x1di\x9a\xa8%\x93\xd3D\x9a\xf6\xcdH,L\xd6\x9c\x0c\x9b*\x89\xab\'\xab\x88\x82\xa8\xa0\xb5Xn\x87\xc7`~\x8f\x0f\x11\x1fz|\xe8\x08\xb1G\x9c\x03\xad\xa4yFE\xf1\xb1\xc3\xa9\xb1\x19\xba\xd8qr|\xcc\xed\xcd\nP\x1c\xd0\xc5\x80\xa8\xf2\xb5/\xff!\xdf\xfc\xc6\xb3&lt;\xbc\x7f\xf1n?\xa5?\xd1u\xa3&lt;\x96\x02&gt;F\xf0\x9e\xe7\x9e{\x0e\x05\xf6\xf3D\xd5\xc2\xad\xd5\x11\x1fy\xfai\x9e\xb9s\x87\xc1GD\x8dD\x87\x03\xe7\xac*S1\x8e\xd4\xe2Uj\x05\xad\x19\xf2\x0c\xdbj\xde\xc79$\t\x95\x89\x18\x02%\x17\xd24\xb2\xdfnq\xceC-\xe49Qs%\xae\x06\xaa\x08i\xbf%\x8d{j*\r\x945\x03R*\xaey+D\x11\xcc\xa8\xc5\x07\\\xecp&gt;\x80X\x03[s\x01-Fs.\x99\x92G\x8a\xf7\xcc\xd3\x04T\x9cSV]`\xdd\x05V}G\x08\x8e\xa9Tr\xce\xc4\x18\xd9n/x\xfe\xd9\xe7\xf8\xc1\x1f\xfeq\xe6R\xe8o8\xaeu\xa3\x0ck\xe1\x98\xdf\xbb\xf7:\xf7\xee\xdd#\x95B\xadJ\x17;n\x1f\x1d\xf3\xd4\xad\x13\x9c\xb7\x87\xe8\xc4!\xad\t\x0c\xce\xaa\xc6ZQ\x14\'\x1eu\xc2&lt;\xef\xf1Z\x11g\x14\x97\xaaXxr\x81Z\x13\x93\x16\xb4\x14\xd2\xb8g\xde\xef\xcd\x13!hRB\xe8p\xc1\x93\xc7-\xf3\xc3\x07\xd4\x94)9\x1b=\xb9\x1a$\xe0\xbc\x03\x0c\xc5G\x04\xe7\x83%\xf8F\x8eG+\xa8(JFK6O\x95&amp;\xf2&lt;Qs!\x0e+j\x9d\xc8yBU\t\xde3t\xc1\xfe\xd7G\xd2&gt;Q\x8a\xb5\xa2\x9c\x13\x1e&gt;\xb8\x87\xef\xb4\xe1s\x7fnX\xffNW\x9eg\xbe\xfeG\x7fD\x9ef\xa8\x95\xe0=\xc1;\xee\x9c\xac8\xda\x18\xe3S\xc4\xfaw\nv\x93\xb5\x01\x92\x0b!O\x15\x87Rr\xc5y\xf3J!F\x1c\x8e\xed\x83\x07\xc4\xae\xa3\xd6\xc2\xb4\xdb\xa2\rp\xad%SJ\x81\x06C\xd4R\xd8=x\x88\xe6\x1de\x9e\xc8\xb3\x81\xa3\xd7\x8d\xaa\x8f+T\xa5\xd1\xa6,\xab\xc89!!\x10\x9d\xb3\xdc\xad\x14\x10H\xf3LM3\xce\x0b\x0e\xa3&lt;\x979\x99\x97S1\x83\xacJh\xad\xa6\xe8\x1c!\x08=]krW\xdex\xe3\r~\xe7S\xbf\xc9\x7f\xfb\xbf\xfaoo&lt;\xa6u\xa3\x0cKD\xd8m\xcfy\xf5\xe5\x97\xda\x94\x0c8\x11\xba\x10\xd8\xac\x06k\xd1 \x18\x8b\xd8&amp;\x9a\xd1\x8as\x86\xa8#\x16\x8cT\xab1\x1eD\xd0\x92\xa8\xbaeL\xc1\xf2\x9aZ\x18\xcd\x95\x90sj\x1c\xafL\xc9\x05\x11\xa1:\xa5\x8a\xbdG\x9a&amp;rNh\xfb,`\x06%\xe2A\x1c\xa5\x16\xb4Th0\x83\x0b\xce`\x88i"\xcd\x19\xe7=!v\x88zJ\xca\xd4TH\xe3l\x14 \x11R\x99\xa9\xa5\x02\xc6\xf1R)\xd6\xdc\xaeXC\x1bA\xd0\x83\'\xdc\x8f3\x1f\xfa\xc0\x07q7\xd8\xa0\x96\xebF\x19\x16(\xe3x\xc9\xbd7^!\xe5\xd9\xb8N\xa5\x10}`\x08\x9dq\xd2K\xa1\x8a\xa3\x94JI\xd9\xf8Wb\x0cM\x1f\xcc{\xa8\x1au\xd8.!\x8d3\xa5\x82\x84h\x9e,\xcdhU3HUR\xb2P\x84,x\x99\x87\xaa\xa4y\xb2q\x1d\x8c\x99\xaa\xaa\x94\\p\xbe\xe2Y\x862\x005(\xc2yo\x0f]\x04\x1f\x1a[Bg49\xf24Q\xd2L\xc93\xa5f@\x88\xab\xa1\xf1\xb9l\xd8\xc39AD\xe9b :c\xcb;\xb1\xa2 \xfa\xc04\xceh\x15J\xa9x\x7f\xb3\xea\xaeo\xbdn\x8ca\xa9\xda\xff\x1e\xdeO\\\x9cm\xa9\xd5\x1a\xb8\xaeUzN\xf5\xf0\x10i\xe0a\xad\xe6eJ\xb6\xa4\xbc\xd6\n\xad\xc2\xaa\xda\x18\x10j\xb3\x7f\xa2\x0e\x8a\x8do\x898\x8a&amp;\xa6q\xa4\x96B=TsP1\xc3\xb2\xca\xd18S\xa8\x15\x08\xe0\x105#\xa89\x19\xfb4\x18\xdee\x13C\x99\x18\x82\x1d\x80\x94\xa8U\xf1\xbe\x92K\xb5\xf6\x8f\xbd\x94!(\x02&gt;+U\xec;h\xad\xad\xbal\x06\xe6l\x98\xc3\x0b\xc68\x9d\'\xc6q\xcf\xe5\xc5\xa5\xe5\xa27\xdck\xdd\x18\xc32O\xa3\xa4\xb4eL\xc6\xaf*%\x13\x82\'Do\xb9PN\x88SRIH\xa9\x94Z\x0ea\xa8\xd4\x8a\x81\x9a\x02X\xbeU\xa7DJ#Z\x94\xaa\x18\x1a\xce\x92\xf0k\x9b3l\x06U\x15\xef\xad1-\x98\x91\xa7\x94\xb9&gt;\xc4T\x1b\xf1/\xea`\x80hQB\x17\xf11\xe0D\xa8@-\x06\xb6\xaa\x80\xa4+\xaf[\x9b1T\xd4\xfa\x97~!\tj\xcb\xb1l\xf8Cpt\xce\xd1E\x87s\xe0\xab\x90\xb52\xe7D\x9a\xf6\xacW\xd1\x08\x867\xdc\xb8n\x8ca\x81\xe5XG\xc7G\x1cm\x06\xde\xf2\x82\xcb\x96\'\xb9\x00\x89L\x95JU3\x92\xe0&lt;N\xabi5\xe4BUPo\x83\x12\xaaJN3\xa5\x14\xca\x9c\xa9\xb9\xa0\r\xadv\xce\x19\xe0\xe9m\xc0\xa2\x94\xd2\xbc\x96Us\xd2\x06\x1f\xa4=8Um\x9e\xd0\x0cK)\x08\x96\xc8k\xad\x90\xa5M\xf1\xb41/\xe7\x98j6\xd0V\x16\xda\x8e}&amp;\x1b?+ J-fV.8*m\x92\xa7\xe4vP\x8c\xc6\xdc\x87\xc0\xdc\xf2\xc0(\x9e\x923o\xbd\xf5&amp;\xb5\xd6\xe6Ao\xeeu\xa3\x0c\x0b\xa0\x1f\x06NN\xee \xf2"\xce\xd5\x16\n\x83\xe5="\xd4\xc5\xfb\xb8\x8ax\x87\xb6\x19\xbf%W\xd9\xef\xf76}S\x8aq\xa1jeN\xb3QX\xc4\xe1]\xb0\xfc\xac\xb6\x11z1o\xe5\x9c\xb3\x04\xde\xd5\x03\xf7iy\rh\xa1P\x04\xadB-\x15\xa5\x1e~\xc7&lt;\x99 \nI+\xe2\x85\x92\xac\t\x8d\x08.DK\xeas&amp;\xe5D\x8c\x11\x17-5\xafs\x06\xefZc\xdb\xc6\xc3\\\xf3V\xd1;\xfa\x18H\xa9 \x02s\x9ax\xee\xc5\x17\x98\xa6\x89\xd5j\xf5n?\xaa\x7f\xebu\xa3\xcc^DX\xaf7\x1c\x9f\x9c\x00\xd0\xc5H?\xf4xqm\xa2\xd9\x8c \x97b^\xc2A\xa5\x82sTU\x8afR\xc9\xe4\x9c\x0fz\x0b\xa5\xaa\x19`\xcb\x81\xe64[Hl\x18X\xa9J\xadf@)\xcd\xa491O\x93\xe5H\xd9\xa8\xc3\xd20\xb2Z\xcd\x88,\xbf\xab\x94ZQ\x01\xef]\xe3\xdcC\xa9\x95\x9a\xad%d\xf0\x96kd@\xc0Y\xe82\xf2`m k\xcb\xabdiK\t\xb1\xe5m\x88\xd0w\x91\xcdf\x00g\xa1\xfc\x9b\xdf\xfc&amp;\x9f\xfa\xcdOYey\x83\xaf\x1b\xe5\xb1T\x95\xa3\xa3#\xee\xdc\xb9E\x8c\xe1P\xb9Y\xb3\xb6R\xd40$\xd5\x82S \x0bR!\x97Dm\t\xbd\xc7Q\xd5\x0cG+\rw*\xad\x85\x13\x9a\x90G{\xe8\xde\x1f\xc2\x1c\xad\xcd#\xa2\x88\xf3\x16Z\x95\x03\x19\x10q\x88\xb39AT\xc9\xc9\xf25\xad\x95\x10\x05\t\xde\xc0P-T\x04\xc1\x91s!\x04\xf3\xa4N\x15\x17\x02q\xe8\x8df\xa3\x194\xe0\x1b\x1f\x0cQ\xbc`\xdd\x84\x16v\x9d\x17\xc8\x16\xdem`\xc4\xb2\xff\xa3\xa3\r\xb5XqrS\xaf\x1beX`!\xe7\xe4\xf8\x16\xcey\xaaZ\x08p\x08\xc1\x05\xc0`\x06\x01\xc8\xe6\xa9\x9cB\x9a\x93U\x81\x8a5{U\x0c\x94\xcc3`^\x83kZU\xda\x10\xfa\x92\x95\x9a38\xe3m"n\xf95kV7\x8fR\xb4\x12}\xa0\xf3W9\x994\\\xc35\xaf\xa7)\x1d\x12\xfd\x943\xd1E\xc0Z2\xa5\x14B\x1b\xa2\xf5]0j\xb4\xb3\xdc\n\xdf\xf2H\'hN\xc6\xa6\xa8\xe0T\x8cb\xa3\xf6Y\xbds\xe0\x1cGGG\xdc\xba\xfd\x18.\xdc\\\xa3\x82\x1bhX&gt;\x04\x86\xf5\xa6\x8d|i\xd3O\xf0Th#SV\xd1\x89\x98\xfd\x94Z\xc0\t^\x1d\xda\xb0-U\xb50\xa9\xc5\x12hq\x84\xe8\x1b\xc3\xc1\x8c\xa6\x94\x02Y\xc1\xd5\x96\xd8\x1b\x06&amp;bs\x87Z\x9a\xaf\xd2\xab\xfcM\x9cIBz\x1f\x90\x95U\x9f\xab\xd5\x06QGI\x13)[R\x1f:\xb5\xf0(\xee09\xadUQ\xa9\x16Z\xa5 &gt;\x10\xfb\xbe\xe5gV\xa8J0F\xc60\x0c\x0c\xfd\xc0\xb6$B\xef\xa8S\x83S\xda\xef\xbd\xf0\xe2\x0b|\xe2\x13\x1f{\xb7\x1f\xd5\xbf\xf5\xbaQ\x86\xb5\x94\xcfw\xef&gt;A\xbf\xea\xc8\xa3\xf1\xafDa\xca\t\xd1\x8a\x88=$\x1f:T\x13\xe2\x1c]\x08\xa4\xfdhHxN\x16\xa2\x8a\x10bl#b\x8e\xbe\x1f\x1a*\xaf\x07.\xba\x8b\x0e\x9f2\xba\x80\xa0" \x16\xc8\xd45D\xbf\xe1J\xb54\t\xa4\x18\t\xcd\xcb\x88s&amp;\xf6\xa1\x8a\xef{|\xecP\n\xa0\xd6\x10\xcf\xd6\\v\xc1\x1fF\xed\xcd\x05K\xcb\xd7\xb2A\x0c\xc1/\xa8.\xa8\x92j\x01g\xdc-\xa9\x06_D\xe7)\xce\xe1\xa4\xf2\xc6\xeb\xaf\xddh\xa8\x01n\x98a\x81=\xf8\xbbO&gt;\xc1z\xb3f\x9b/\xe8\xa270qA\xb5\x15\\\x08\x80!\xd0]\x8c\x8d\x0e\xdc\xfa\x86\x0e\x82\x0b\x87\xb6Km\xe1\xa9\xd4b\x9c)g\x9e\rU\x08\x82\x8f\xc6\x81_\xc2\x98"\xad\xd2\xb4\xb0,\xcd \xb4\x16\xdc5\xa14q\xd6\xbe\x99\xf7#:\'\xc2fE\xe8zJk7y\x84\x1a\x1b#UK\x837&lt;)%\x9c\xf7\x80\x85\xf1\x96\xde\xd9\xe5\x0c\xe7\xca5#\xde1\xc4\x0eHL\xaa\x96\xcc\'!\x86H\x08~q\xa47\xf6\xbaq\x86%"\x9c\x9c\x9c\x1a\x95\xb7\x85\x1dU\x8c\xcd\x19&lt;\xe2\xbd\x81\xa7-4\xa5\x9cq\xc5\xbcL\xf0\x1e\xd5\x86\x90\x8b!\xf1&gt;4Q\x8eR\xda\xcf\xaf8\xeb\xd4\xd2\xde\xc3\x1f\xf0*\x0bU\xe6\xbdL\xb3\xca@\xcf\n\xa0\x15\xd5j\xa2\x1f\xd5\xdeC\xbd\xa0\x9d\xe9A\x90\x12,\x15\xe2!\xac\x06zb#\x05\x9a\x98\x88\xbd\xbe;X\x95\x08 \x8e\xe0 \x06\xcf\xd0\xd90\x88s\xca\xd0\x05\x82\x87\xfd\xdc\xb1\x1fGr\xce\xa69q]\n\xfa\x06^7\xce\xb0\x00\x8e6G\xac\xfa\x9e\xc9\x07\xbcxT\x84\x94\x0b\x85\x05\x7f2*\x8c\xb8\x089#. ZP\xbcQj\x9cCq\x8d\xd9IC\x9c\x1aY\xaf%\xd9\xd2p\'\xb7T\x864C\xb8\x06\xa4\x8a\x88\x85\xb4\x861\x19\x10\xdb(;"6HQ@PJ\xa9@\xc6\x11\xa8jy!\xee*7+U\x1bD`\x04&gt;\xb4\x90\xb5"!\xe0\xdb\xc7C\x85(\x8eM\xdf\xb3\x1a\x06\x8a*\xde\x07\xa6\xa2t\xfb\x89\xae\xf3\xcc9szz\xf2\xe7\xa1\xf0Os\r\xab\x15}g\xc2\xb0\xfd\xd0\xa1\xaa&amp;\xc4\x01\xad\x11\x9d\x08\xd1\xc2\x94\x02\x08\x14U\x9b\xef\x13\x87\x0b\xd1\xfe\x9d%oi)\x0c\xd5\x08w\\\t\xcdj\x93\x1c\xf2\xde\xb7a\x89\x858\xe8\x8d\xa0\x87\xf5\x0b\x9d\x00\xde\xe3T\x0f\x00\xaaai\x82\xe1\xa3\xa6\x84c\x97\x1c&lt;d\x01\xe66\xb2\xe6\x9a\x98[\xb5\x80kMfm\x9e\xd5yj\xf3X\xc7\xab\x15G\x9bD*\xc5"6B\xf0\x81\x18#\xc7\xa7\xa7\xbc\xff\x03\x1f\xf8\xf3\x96\xce\x9f\xe6Z\xad\xd6\xdc&gt;:\xe6\xa1\xbc\xcez\x18@`\xd5w\xf4!\xb62\xdf@Eq6\xcb\'\xaat\xa1k\xe1\n\xaa\xa5\xe9\xa6\x86,\xbe\x850\x83\th\x1e\x04\xe5\x80\xcc\xfb\xa6N\xe3\x9cC\xbcA\x15\x86Iik\xd7\xf0\x8e\x84\xa66\x83\xac\xc5\xc6\xeb\xf1\x1e\xd4\xba\x02\xe224\xee\xbbs6.\xb6\x9d\x92q\xc5T\x891\xe2\xbd\xd8\xe4u\x85\xe8,\xc1\xaa\xa5U\x9d\xce\xd1\xf7\x81\xa3&gt;2\x0f\x03S\xca\x80\xe7\xf8h\xc3~\x1e\t&gt;\xd0\xc5\xee\x06\x07A\xbbn\xa4aU\xadH\xf4\x84\xbe\x83f8Nl\xfcK\xa8 \xee\x90X\x8b:\xa8\x05u-l\x15GJ\xd5\xe4!\x9dG\xb0|G5\x1d\x18\x0cZ-\xdfai&lt;k\x1b\xae\xc8\x15\xaay\x9b\xae\xeb\x0c}\xa7\xb6\xb0\x07\xb4\xf1z\x1a\x97\xbe\xd4J*\x85\xa4\x8e\xdc0/\x1d\xad\xea\x14&lt;U\x85\xb9dR\xeb\x04\xc4\x10p^9Z\xad\xd9\x0c=}\x08\x86\xd4k\xc5\xe1\xa0\x88M\x0e9\xe1t\xb5b7\x17rQ\xe6\xd9Z[\xa7\x9b#\x9e~\xea)&gt;\xf8\xa1\x0f\xdf\xf0\x0c\xeb\x86\x1a\xd6j}\xc4Sw\xef\xf2\xe6+/5wo\'\xdd5P2\xc4H\x88\x91\xd8\x05\xe6\xfdL\xaa\xad\xe9\x8c2\'{\x109e\x1c\xd6\x83C\xb3QQ\xa8\xa6\xad\xa0jK\x01\x14\x83\x15\xd4!\xd5\x94\x00\x17\x03\xa8\xb5\x1a\x11\x0f\x93\x83\xac\x95\x963e\xbcX\x8bh\xcc\x89\xcb\xfd\xcc\xdb\xbb\x91\x8bq\xcf&lt;\xcd\xe4\n\x12\xdc\x01\xd0\xadb\x00\xe9\xd0\r\x9c\x1co\xf0\x01RN\x88\x9e0yO\xe8\x1c\xb7\xbb@\'\xcd\xcb\x02^&lt;]\x8cxg\xf9e\x0c\x81\xd5\xd03\xac\x06&gt;\xf0\xde\xf7\xbd\xdb\x8f\xe7Ot\xdd@\xc3\x12|\x08\xdc\xb9\xf38\xabaM\xec\x021\x98\x16\xa8`\xfaU\xce\t!\x1a\xb6s\x91\n\xdb\xfd\x9e\x9c+\xfby\xe6r?2\xa7J-\x90s%\xa5\x19\xc8-\x8f\x11\xfa\xe0Yu\x1d\x9bn\xe0\xa4\x1f\xf0E\xa9\xa1\xe2hT\x1d\x8a\xb5u\x12\x80R\x8a\xda\xac\xa1\x08Z\x1a\xbb\xc29r\xa9\\\xeeF\x1e\xec\'\xde\xba\xbc\xe0\xfe\xc5\x96i\x9c[\xeb\xc7\xf23\x111)\xa5.\x10|d\x9c\x13\x9b80U\xe5l\x1c\xe9B@&amp;e\x18z\\o\x82"\x0b\xed:\xc6H\xd7ut\xb9\x80:\\p \x81[\'\xa7\x87;u\x93\xf3\xac\x1bhXv\xb3\x1e\xbb{\x97\xe3\xe3\x13\x1cJ\xf0\x96\xe8\xaas\xc6\xd2\x0c\x16\x16\x15\xe5\xad\xb3\x87\xbcu\xf6\x10\'\xc1\x08qif\xbf\x9f\xb98\xdf\xb2\x1d\'\xe6\x9cq\xda(*mu\xc9f\xe88\xd9\xac\xb8\xbd9b3\xf4\x1c\xf7\x91\xc1\xdb|\xa28(\xd5zt)%J1\xc0\xc8{[w\x82\x08\xeaLAy\x9c\x0b\xfb1\x91\xb3\x89\x81h\xb4\x00\x95ri\x9cu\xcf\xd1j\xcdz\x08\x0c\xab\xfe0\xf6\x85\x98g\x0c\xc1\x8a\x81\xf5\xb6\xa3o\xd5\xa1k\x05H\x08\xc6\rs\xce8\xf2\xf8\x8eR\xdda\x11A\x9e\xf6\xb61\xa3_\xbf\xdb\x0f\xec_{\xdd@\xc3Z@\xd2\xbbt\xdd@N;\xba\xae}Lk\xe7\x99d\xa3\xf7\\\xecwl\xc7=\xfb9\x91\xf3t\x85\xac\x17\x9b\x9cI%3\xce\t#@4\xbd+u\xe4\xdd\xc4\x98\x0b)%n\xadW\x94\xcd\x8a\xd3\xa1\xa7\'\xe0p\xd41\x11\xbc\'\x97j\xe8\xb8\x0b\xb8\x18\xc0;Cb\xab\x92\xb5P)\xc4 \x9c\x0c\x1d\xab&gt;X\x02\x8e\x98\xb7\xf2\x95\xa1\xefY\xc5\x9e\xae\xef\x90\x10\x01\xf3\xbc1zf\xb5\x8a\xaf\x13\x18\xf7#i\xbda5\x0c\x07Q[QX\x0f\x1d\xc5\x05T\x05\x9dF\xbaU\xcf\x94f^\xfd\xda\x1f\xf0\xb5\xcf\xfc\n\xab\xa3\r\x1f\xff\xee\x1f\xe2\xd6\x07\xbf\x1di\xa0\xf1M\xb9n\xa4a\x81q\xae\xe6\x92\xd1Z\x08\xa1\'(\xc4\xe8\xdb0\x83\xa0*\xec\xa6\x99\xed8\x93\xb2M\xcf\x94\xa6\xfdn\xa1\xf4\x98[w\x8e\x98\xa7D\x9e3)%C\xab1MR\x17\x94\\\x12\xbb\x19\x82S\x02\x8ajgl\n@\xfa\xde\xa0\x84\xacxiC\xa9\xc1[\xf3[\x8d\x85\xd0u\xe6=7\xd2\x19\xb8\n\x8d\xd7\x00\xb4\xa4\xdf;oPA\xbf\xa2\xebV\xc4\xbe\'\xf4\x911\x8dL\xbb-A\x84\x10}cn\xd0&amp;\x13i\xde\xca\x13\xa3c\x9em\xeaz\xdc\x8d\xfc\xde\xa7~\x8d\xf0\xd6\xabt~\xe2\xf4\xf6\x93&lt;;M|\xe7\xe3w\x19n=\xfen?\xb4w\\7\xce\xb0\xb4V^{\xf5\x15&gt;\xfd[\x9f\xe6x}\xc4\xeer\xa6V%xG\xf4\x8e%\xc7-\xaa\xecw3\x9a\x15\xafB\xef\x03!8B\xec\x8d+/VI\xcaz\xd5xX#i2\x16\x04\xea\xf1\x8dS\xbe\x88{\xec\xa7\x89R\x8c\xb3\xbe\x8a\x91Z\xd5\xf8\xeb1\xe0\\\xc07\xdd\x06\x8d\xb6\xb9\xc2\x15%v\x1e2\xe4F\xfc;\xf0\xf4\x15[L\xd0E\xfa`J\xcb\xce\x81\xab\x15\xaf\x05W\x85\xc1\t\xfdj\xd5\xb0/\xb5\xb6T\xad\xd7\x062&lt;\xb4\xae\x00j\x8a\xcd!%\xd2\x8b_\'\xc6\xca\xc9\xe9\xe3\xe8n\xcbk\x7f\xf8e&gt;\xfa\xd7\xfe\x06\xc3\xbb\xfd\xe0\xbe\xe5\xbaQ\x86\x95\xf7;\xde\xfc\xda\x97x\xf5\xf9g\xf9\xd8\xd3O\xf0\\\xda\xb1\xdb=\xb0fo\x0c\xc4\x10\x1a_\xc9\xc4\xd3R\x9a\x19b`\xddw\xad\x1f\'\xd6\x08.\x86\x0b\xa5\x9c\xa8d\xa867\x98K6Z\x8cS\x1c\x0e\xe7b[\x06P\x99KF\xa8x\x07!\xae\xe8\xba\x88\xf7\x8eN&lt;\xe2\xec69\xa7\xe4R\xc9\x08\xb9\x16v\xd3\xc88\'\xe69\xb3\x9b\'\xee\x9f\x9d\x91\xe7\x02\x12H\xa5ix\xad#\x8f\x9f\x9ep|\x94\xd8\x0ckT\x13\xb1FJ-&amp;\x10\xe2 8pba\x17o\xbdQ\xd3-\xac\xd4\\\r\xd5\xcf\x95\xbbG\x03\xc7\x01\x06\x17`N\xbc\xf1\x87_\xe1\xd6\x93O,\xfc\xc1\x1bu\xdd\x18\xc3RU\xee\x7f\xfd+|\xfd_\xfe\x02\xb5\x16\x8e7\x1b\xd8\x9e\x91K\xa6TS\x94\xb1\xa9\x1b\xc3\xa2JI\x94l\x89p\x17=\x94\xc6P(\x96p\xef\xa6\x91\xcbq\xe4\xf2rb{\xb9\xe7b\xdc\x93S&amp;z\xcfz\x1d\xb8\xb5Y\xa1Q\x9b~\x951\x14zg\xf8\x98s\x8e\xae7=\xd1\xe0\xad\xd7\x98raJ\x19\xa7\xa6FSUmgO\x9a\xb9\xd8ny\xed\xcd\xfb\xecSa\xd5\x1fs&gt;N\x9c_\xec\x98\xb2Rk\xc2;\xe1\xe4\xf4\x88\'\xee\xdc\xe2\xb1\xcd\x8a\xf7\xdc\xb9\xc5\xdd;w\x88\xbd71\xb9ZII\xe8J\x8fD\xebL\x8b@\x0c\x0e\xdf\xf2&lt;W\x0b\xb7\xd6\xc7\xac\x9c\'\xa7\x99\xb7^|\x9d\xb7\x9e\x7f\x99\xa7\xde\xfb\xfe\x1bY\x19\xde\x0c\xc3RE\xb4\xf2G\x9f\xfb-\xde|\xed\x15\x8eNn\xe1\xca\xc4i\xe7 \x17\xc6qDV\xbd\xa1\xe7\xaa\x04\x1f)\xc5\xb0\xa9\xbe\x8b\xad\xa7\'\x8c\xe3%\xe7\xdb\x99\xd7\xef_\xf2\xfa\xc33\xce\xf6;\xc6\xb9 \xea\xf0\x08\x9dw\xac\x83c\xb7\xdf\xb1\xdf\xefy\xe2\xb1S\xd3\x81\x10!t\xd1\xe8-\xde\xfa\x8d1FVGG8\'P\x8c\x9dPJ\xa5V\xa3\xd1t]O\x08\x1d\xd3\xc3s./\xf7D\x1f \xf4\xe4\x82\x01\x9b*\xa8S\xdb\x0e\xe6\xc0\xf7\'&lt;\xf3\xfe\x8f\xf1\xda\xcb\xdf\xe0\x85/~\x99\x8f&lt;\xfd\x14\x1f\xff\xc8\xfb9&gt;9f\x9a2!{h\x9d\x00\x9c\xc7\x8bg\x08\x91\xf3\xdd\x9ey\x9exz\xb3fh\x1c\xfa:Vvg;J\x114U(7\x8f\xa6|3\x0c\x0b\xa0*go\xbd\xc97\xbe\xf2E\x9e\xfa\xf6\x8f\xd3\xadz\xfa8\xb0\t\xc2\xbeT\xa3\xca\xe8\xa2\xaa\xee)\x85\xa6\xb5\x90Q\x1c\x97\xdbK\x9e}\xe55^\xbc\x7f\x8e\xc4#\xd4\xf7$\x12U \xcd\x13]\xf0h\x116\xab5\xab\x10\x10\x94\xdd~Dz\xa5\x0b\xf1  +\xe2\x0c;\xeb:b\x1c\xe8\xfaHi\xf9WJ\x999\xd7\xd6d\xee\x01\xc7&lt;g\x86\xae\xa7\xa8c{y\xc9\xf1\xe9\xe3\x9cO\t\x15\xc7|y\x8ex\xcfw}\xf2/2i\xe6}\x1f|\x9a\xba}\x13?\xef\xd8\xe5\x91\xd7_\x7f\x95\xcd\xd1\x878\xbdu\xda0,\xda,c\xc1\xb9`\x0b\x10\x14V&gt;pk\xb3n\x85IdX\xadX\x9fnxK\x84\xedn\xcfx\xfe\x90\xf5\xdd\xf76&gt;\xd9\xcd\xf0^7\xc6\xb0\xd4\t\xeb\x93S\xa6\xed\x96W_x\x89;\xef\xb9\xcb\xfa\xc4\xf3\xd8\xba\xe3\x95\xedLJ\x057\x84\xc3\xf0\xc1\xbc\xdf1n\xb7\xcce\xa6\xe6\xca\x1f=\xff*\xaf?\xbcd\xd3\xad\xf9\xf8\'&gt;\xca\xfd\xed\x8eW^\x7f\x83i?\xf1\xe6&lt;\x1d\xe83\'\xb7o\x11\xd2\x84\xe6\x99(\x11/\x06\xc0\x0e\xd1F\xda\x17pr=\x0c\x04\xe7\x99\xf7{j\x9a\xe9\xd6\x1bbN\xd4\x8bs\x932r\x85\xe0*\xb7N6\xbc\xfc\xda\xdb\xbcu\xff\xac-_\xca\xf4NypyN\x17\x02^\xe0k\x7f\xf8e&gt;\xfc\xe1\x8f\xf0\xf6\xf3/r"\x8e\xf7~\xfc#\xb6\xfd\xa2\x16\x1b|\xcd3\xd5\x07\xaasmx\xa3\xe2\xa2-&lt;\x18\xfa\x88\x93\r\xc1Y\xa8\x8f}O\x1f"\xa7\x8f\x9d\xd0\xadzRJ\xcc\xa3\xc9=\xdd\xa46\xcf\xcd0\xac\xa6\x18\xf3\xf8{&gt;@\xb7&gt;"\x8f\x99i;3\x1cU;\xb5M\xfa\xc7\xc9\xd0\x0c\xcbF\xb7L\x98V\x99\xa6\x1dw\xef\x9c\xf2\xc4\xed\xc7\xa9Ya\xb7\xe3\xb8\xeb\x99\xb7{v\xe3\x9e\x18\xad\x11\xbd\xeez\xd6\xd1\x93\x13Lsb\x16\xc7\xf1\xb0\xe2x}\xd4\xda?\xc6:\xe8}$\xc4\x8e\xe1\xe8\x84\xfd\xee\x8c&lt;\xcf\xf8\xbe\'\xa6\t\x9d\x13\x9a\x0b\xbe\x1fp\xce\x9b^hU\x86&gt;\xa2\x05\xd2~f\xed\x03\xb7\x8f\xd6\xe4\x9c\xe9\xfb\xc8f=\xf0d\x10\xee\x04\xb8\xf3\xc1g\xd8\x1c\xaf\r\xe8L\x99\\\'\xba\xae#\x86\xae\xdd\x8a\x85]j9\xe5\x10\x1d\x9ah,\x0cAtfJ#\xc3\xf1\x9a\xc7\x9ez\x02\x9dG\xdb\xa0\xc1\xcd1*\xb8)\x86\xd5\xae\xa3\xc7\x9f"\xac7L\x97{JQ\xe64\x11}\xe4\xd6j\xa0w\xde\x06\x14\xa4\x92Sa\x18:\x1e{\xec6\x17\x97\x17t\xdesr\xeb6\xb8@\xc9\x95\xfd\x94x\xb0\x1b\xf9\xf0{\x9f\xe2\xde\x9b\x0f\x98\xe6\x91.\x08\xab.\xc24\xe2\xb4\xb2\xea{\x8e6kD \xcd\x99.DT\x14W\x95\xceGb\xbfb}\xfb6Ug\xea&lt;#\xceB\xa5\xabJM\x19\x95\x99\xddnO)\x95\xa36\x9e5\x8d\xa6\x9f\xb5\xe9\x1c\'\x9b[\xf4]`\xd5E6\x9b\r\x8f\x9f\xac\xb9u\xbcb\xb3Y\xd1\xf5\x91\xe8\x8d\xb4X5\xb6\x06\xbb\xcdM:1~\x98A,4&amp;\x84@\xad\xec..\x18kfu|L\xdf\xad\xb9\xf3\xcc3l_\xbdG\x9e\x13\xf0\xe7\x1e\xeb\xdfx\x9d&gt;\xfd^\x8e\x1f\xbb\xc3\x83\x87\xcf\x12\x87\xc6\xca\xf4\x81\xce\xa9U\xe1m\xf3V\xdf9T\x07\xc4\x99\xf8\xd9\xb87\xccG\x9c\xa3\x86J\x1f\x1dC\x07\xc7\x9dp;\xden7^)%\xdb\\bv8\x11cj.J5Uq\xaa\xf4\x9d#v=\xb8Hi\x136\xa8\xa9\xf8\x89\xb3\xa1\x0c\xd9+\xf3\xb8\xb7^\x9fx\x9cKt\x0e\x886[8\xf4\x81\xa3u\xc7\xd1z\xcd\xaa\x8f\xac7\x1b\xfa!\xe2\xa2\x90K\x82\t\x8a\xcf\xf4]\x87\x88=\x02Ui2\xde\xc6\xdd\xd2Z\xc8\x05\xd0\xc2~\xde\xe3J\xe5\xdes/\x10\xfb\xc8\xed\xe2\x08\xb7;\x8en=N&gt;\xdf\xdd\xc8\xbd\xd27\xc6\xb0D\x84\xd5\xe9\t\x8f=\xf9\x04\x0f^\xbfG\x1f\x8d"3\xa7=Z\x9a2\x9f\x9a\xa6\xba\xd6J\x1f\x02]\xdc\xd0\xc5\xc0\xb9\xdf\xb2\xdb\xee\xcc\x10\xb1~[\xdfE@\x19\xa2\x83\xacL\xf3\xcc8%\xe6435\xb2\x9e\xf3\x9ea5\xd0\x87\x8e(\xb0\xee\xcc\x18B\xb0!\x8c\xdd\xd9\x19\xe3\xe5\x05\x9a\x13&gt;\x15\x9c\x04B\xe8\x88.\x91\xeb\xc8 \x9e\xf5\xb0a/\xcet\xb5\xe6\xd4\xa6\x8a\x0c*p\x02!vVY"\x94\\\xd0\xb2\xb7C\x12\x07\xa3\xe7\xc4\xd0\x98\x17\xd6\x86\xb2\xb9IA\xc4\x88\x87\x8b\xf2\xf2\xb8\x9b\xd8]\x8e\x0c\xa9\xf0@\xdfd\xdcny\xea\xa9\xf7\xb0\xba}\x9b\xb8\xde\xdc\x98\xa4}\xb9n\x8ca\x01 \x8e\xd8\xf7&lt;~\xf7I\x1bT\xb8\xb8\xe0r\xda\xa3\xdd\n\xe9\x07C\xa6\xc5r\xac.\xd8\x1e\xe6\xae\xebm\xc4*%.\xc7D\xc9\xc5\xf8ZM\xa5\xa6"\xa4&lt;\x93\xe6\x99\x92\x12\x01Gw\xb4\xb6\xf5\xb9&gt;\xb0^\xaf\t\xaa\xac\xa2g\x15\x03\xebn0M\xd36\xc1\xac\xd9d\'Q\xcb\x03}\xe8\x88\xd1BO\xa7\xa6N\xf3\xd0\x0b\xa3w\xe4\x18\x08"\x88X\x83Y\x1a\xcd9\xa5B.{&amp;\xa5\xe9\xd4\x17\x82\x8f\xb8\x18\xc9)\xd9\x02\xcf\xe6qM\xb1\xb0q\xbeJi\x80\xac\xe7\xc9\xc7\x9f\xe0\xec\xde}\xa6\xb3\x87\xcc\xd3Cr\x1a9=9\xe1\xf8\xf6\x1d\x86[\xb7\x9b]\xdd\x1c\xe3\xbaY\x86\x85\x10\xbb\x15G\xb7l-[\xbe\xa8\xa4\x8b-\xa3\xec9~\xf2=68\xea\x1c\xd24\xacb\x08P\x85\xa3aE\x99f\xe6\xd9d\x17s.LS\xb2e\xe0M\xeb\xc1\x87\xc0\xd10\x10]@\x9d\xc9w\xafbG\x17&lt;Rf\xba\x18\xe9\x9c\xc7\x87\x80\xef\xa2q\xd1\xd5\xe3\xe3\x1a-3\x0eG\xce\t\xe7\x1cq\x88\xb8\xda\xd8\x9eCe=\x0c\x9c\x8d=\xd3\x9c\xecw\xc4\xc6\xf0\xbb~h\x8a\x84\xb6\xda.\xe7\x99\x92\x95\xf1r\xa4s#qm\xc5Gm\x13?\xdaf\x1a}\x08\x87\xa6\xa18\xc7\xe5~\x82\xcd1O\xbe\xef)^x\xf8\x90q\xb7\xa3\x90\x18\xa7\x1dw6\xef\xc5\xf7=7\xc9\xa8\xe0\x86\x19\x96\x00C\xb7bZ\xf7\xa4Z\x98\xa7\x99:W\xba\xdb\'F\x93\xa9\x85\x92\xc17I"\xc4\x86*\x86~\xc5\xd4O\x9c\xac\x8e\x90\xaa\xec\xb6{\xd4W\xdcjes{\xde\x88w\xd1G\xa3\xb7\xa8\xe2\x9d0\xc4\x0eq\xa0\xc5\xd9\xc2&amp;\x1c.\x06\x9b\xc2\xce\x8b\xb2\x8c\xa2\xd2\x94\xfa\xe6\x11\x05B\xf06 \xebh\xebL\x94\xd5z\xcdn\x9a\x98\x92\xa9\x06\xe6\x9a\x0f,\x05\x11\x9b\xb4\xee}G\xe8\x83\xd1\x92\xd5\x86k\x01$4\xf5\x18\xe7\x10\x85\x9aMX\x04o0\x0c\x12\xd8N#\x8f\xdd:\xe2\xa5\xd5@:\xbb vB!\x13V+\xc4\xc7w\xfb\xd1\xfd\xb1\xebF\x19\x16"\x887-\xf6\xf9r\xcb\xb4\x1dy\xf2\x03\x1f\xe4\xf8\xfd\xef\xe7\xe2r\xdf\xd8\x0b\xd9r\x10\x0cp\xeeb\x8f`FRbG\xe9\x06\x02\xde\x80L8h\xbb;\x95\xc66\x90\xd6\'\xb4\x01\x05Q%\x1d&amp;\xae#1v\xa88|\x8c\xd4\xa4-\xa9\x17rJ\x94T\xdat\xb6%\xfcU*\xa15\x8c\x17\xcfTu \xcd3S\x9a\xc9j+\xe8\xc0&amp;y\x82\x8b\xb6eUm!g\xc9\t\xe7\x1dU\xfd\x01\xdc\\\xbcVu\x98\\e*\xa4R8\xdb^r+l\x08\x9d\xa7H\xa5\xeb{\\\xe8\xd9&lt;\xfe\x04\xa1\xef\xb9i\x83\x867\xcc\xb0\x1c*\x0eU\xa1\x8c&amp;\xd3\xf8\xd4{\x9e\xe6\xedq\xc7n\x9e\xd8\xf4\x8e\x1a\x04\xd1&amp;`\xeba\xbe\x9a\xef\xa2\xf3\x01\xedz&lt;\x9e\x18\x8c\xc4b\x12E\x1e\x11\xdb\xbf\xdc:\x8ax\xe7\x89\xc1Dl]qW\xbaYq`}|B\x8c\x81\xdd\xfe\x12\x1f\x82m\n\xd3B\xd7\xf5\xcc\xe3\x08\x1e\x93\x8c\x0cm\xf5IN\xf8\x18\xe9\xba\xc84\xdb\xe4rp\x0e\x8fyJ\xe7\xcd\x13u\xc1\xd9\xfb\x89\xb3\xb1\xfc\x92p\xce\x96pz\xdf\xf8^M\r\x90\xe0X\xa8\x1c1\x04\xd4e\x8a@\x17L\xcf~sz\xc2\xfa\xf8\x16\xdd\xe6\x04\x1fo\xde&gt;\xc3\x1beX\xe2\x84n\xb3"\x9cuv\xda{\x9bh\xb9\xb8\x7f\xc9\\\xac\x04\xaf\xc54\xb1j\x93\xaf\xaem&lt;\x8b&amp;\x01\x19C\x87VA\x9a\xd4P\x086\xe0Z\xd5\xe4\x17m:\xda,q\xd9VQJ\xc2\x89\xa3\xeb:\xd6\xb7\x1e\xa3[\x1dQ\xc6\xd1\x06P\x9b\xfa\x8b\xa0\x0c\xc7GL\xd3\x8e\x92\x04\r\x0e\x17\x82y\xb7\x94\x89]\xa4\x00\xd34\xe2\x04\xa2\x0f\xc4`\xea\xcc6\xd4\xb1hF\x99\xc0\x87\xb8\xa6S\xda\x14\x08]\x08\xed{\x99t\xa5\xafB\x96\x8c\xc9\xc3g*\xa0m{\xeb\xf1\xe91\x8f?\xf3\x1e;\x00\xab5r\x03Ugn\x96a\x89\xa3_\xaf\x08\xd11\x1c\xad\xdb\xb0\xa9"!\x12\xc4\xbc\x8f:#\xf3I\xa9\xd4T\x0el\x04]\xa4\x88\xe0 M$MPDL]\xadQ\x93m\'O\xad\xf5\xb0u\xc2yo[\xe6\xbb\x8e\x93\xdb\xb7\xf1&gt;\xb0\xdbn\x99\xe7\x8c[\rH\xdb\xb1srr\x97\xcb\x87\x0f(\xd9\xc8\x84\x84@\xe8\x06\xaa\xcf\xd4y\xb2&gt;^\xbf&amp;M#^*}\xd7\x1d\xe4)\x97AX\x8f\xe0\xbd\xd8\x96\n\xef\x11o\x85\x85\xc9\x88\x1bn\xe6|\xa0\x02c\xae\x9c\xeff\x13\x1b\xf1\x81i.\xac\xfa\x8eg\xbe\xe3\xdb\xd9&lt;\xfe\x18^&lt;\xeb\xd3\xc7\x10\x1fnT\x18\x84\x9bdXmpt}z\xdb\x18\xa0O&gt;\xc9\xeb\xf9U\xaa\xc2nJ\xec\xe7\xc2I\xefM\xbd\xb8\x14\\\x1b\xb7\n\xd84\xb36Q\xb4\xda\xc6\xd8]\xa6!\xd96Q#M\xeb\xaa4\xe9E\xe7\x1ci\x9emt_L2\xc8\x89p\xf9\xe0-\x9c\xef\xd8\xef\xb6\x10\x02\xb1_S\xe7\x07x\x89\xe4\xb9PJE\xc5x\xa2"\xdeD\xd6\x8aIm\x8bZ\xfe\xd6\x85\x1e\xad\x06\xcaz\xe7\xdb\xa4\x8f\rIT\xe1\x80\xac{/\xf8\x18\x0f#\xfd\xe2]\xfb^B\xaa\x95\xa9\x1a++\xc4H\xd7\xf7\xcc\xb3y\xd0n\xb5\xc2\xf9@\xdeN\x0c\xc3\xcd\\\x90yc\x0c\xcb\xf6\xffyV\xa7w\xc8\x15N\xef&lt;F\xca\x959eR\xae\xe4\xc6\x0eI\xd5\x04i\x03\xb6\xc5"i\xa5\xce\xb3\x19\xdb\xc2\xbet\x8e\xbaD\x07\xb10&amp;\xce\xd4\x00\xa5\xedoNyQ1\xb6\xd1\xf7N#\xb9V.\x1f\xbc\r\xce3\xcf\x95as\x0c9\x91\xc7\x11\x1f\x02\xd3\xe5\x055\xcdm1\x13\x94\x94(ZH\xfb\x11QaNc\x93\xb54\x0fTK6\x8e\xbc\x08*\x8e\x10\x1c\xce\x03*\x87\r\x1b\xda\x8c\xa2\xb4~\x1f"\xe4R\xd8\x97\xc28\xdb\xda`j\xc5;\xe5x}\xc4J\x85\xb0&gt;B\x11|\xd7!\xe1\xe6\xe5Wp\x83\x0c\xcb\xf0=G\xbfZ\x93s\xc5m"\x8f=q\x97\x87\xbbKb\xdc\xf2`\x1a\xb9\x98gnE\x1b`5A\xb4l\xa1O\x1d\x94B\\\xd6\x8e@\x93el\xec\xf1\x869\xb9\xa6\x87\x9d\xd3\xc44\x8d\x88\xf3mq\x80c\xe8z\xe6i</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -475,6 +497,14 @@
           <t>Mano Menezes</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x04\xeeiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n        &lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n        &lt;dc:title&gt;\n        &lt;rdf:Alt&gt;\n        &lt;rdf:li xml:lang=\'x-default\'&gt;Elabora\xc3\xa7\xc3\xa3o de fotos - 2&lt;/rdf:li&gt;\n        &lt;/rdf:Alt&gt;\n        &lt;/dc:title&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n        &lt;Attrib:Ads&gt;\n        &lt;rdf:Seq&gt;\n        &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n        &lt;Attrib:Created&gt;2024-01-30&lt;/Attrib:Created&gt;\n        &lt;Attrib:ExtId&gt;5ca72ea9-c0d3-496c-bbd3-f2eb9a701271&lt;/Attrib:ExtId&gt;\n        &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n        &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n        &lt;/rdf:li&gt;\n        &lt;/rdf:Seq&gt;\n        &lt;/Attrib:Ads&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n        &lt;pdf:Author&gt;Jo\xc3\xa3o Izzo&lt;/pdf:Author&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n        &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n        &lt;/rdf:Description&gt;\n        \n        &lt;/rdf:RDF&gt;\n        &lt;/x:xmpmeta&gt;R\x914\x0c\x00\x00\x00&gt;tEXtComment\x00xr:d:DAEewil2SDw:3446,j:2783641712550608804,t:24013019\tb\xe5\x00\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x03\x00PLTE\xff\xff\xff$+57;F\x16\x19\x1d\x17\x18\x1a(.8\x1c\x1d!\xfe\xfe\xfe\x15\x16\x18;?J8=I&gt;AM*0:?CO\x1a\x1a\x1b\x1c\x1f$\x14\x15\x17BERCHU!"\'15@%&amp;+\x18\x1b :@M&amp;)0`dpFKW\x1f $UYf37B69C03&lt;\x1d!\'(+4.4@Y]j^anIMZ[_l\x1b\x1b\x1dchvY[g;CP!\'0SUc39EOS`cfrLP]\x1f$+\x19\x1d$\x1f\x1d\x1d\xdc\xe1\xe3H3.hkx,2=\xb2\x81q-.4\xfb\xfb\xfcqKBD0+\xa8xgvQHiKDkOG$ \x1f\x83ZO56&gt;2&amp;$=&gt;EN5.\xf8\xf7\xf8\xc0\x95\x83oRJ;:?S93\xe1\xe4\xe5\x9fmb8+)jn|\xa2sc\xc4\x99\x87{VM\xb2\x89{\xc2\x91\x7f115+" \xad\x7fn+*.\xbf\x89z\x82VK\x88[R\xcb\xa7\x96\xb3\x86u\x9bri`E?\xca\xa2\x8f&gt;-+\x90g_\xff\xff\xff\x9fh[\xb9\x88w\xce\xac\x9c\xac\x84wZ@9\xba\xb0\xaeIRb\xb1\x8c\x84\xba\x94\x87\xb2}k\xb9\x8a\x84\xb2\xa8\xa6\x9bcX\xacyn\xf3\xf3\xf3\xac~w\x8ac[\xabqc\x95fZ\xa7\x7fr\xdc\xdd\xde\x9e}u\xc7\xa1\x98|\\S\xc4\x9e\x8d}SIpr~\xb9\x85r\xb3\x91\x88\xbb\x91~\x89ie\x96aTuVO44:gH@a?9\x8a_R\xa5m_\x91[O\xa0xm\xd1\xb2\xa4\x83`[\xef\xed\xecOWf\xaeyh\xab\x86}\xb1\x9f\x9cCK[\x8c\x8f\x9a\x90aV\xa6wp\xd9\xce\xc9\xcd\xb5\xa9\xc5\xb2\xad\xb7\x80n\xb1\x93\x8f\xb8\x97\x8f\xcf\xc9\xc5\x8frm\xc0\xab\xa7\xb9\xa6\xa1\xba\x9f\x9a\xa1\x82}nZVZcu\x95xr\xb6\x8c\x80KIP\xbf\x97\x8d\xd5\xbf\xb4\xa2\x89\x84\xba\x8cz\xd6\xda\xde\xb9\xba\xc4\xaa\x99\x95mt\x83\xd3\xb9\xadS\\n\xce\xd1\xd7\xbe\x9d\x93\xc0\xa4\x9chD;,&amp;&amp;\xb4\x84}FDLQNV?44\xc1\xb7\xb5\x91mf{qr\xc9\xaa\x9d\xc7\xae\xa4Y;3sx\x87\xa4ri\x98nb\x89zz\x96\x81~\xa8\x8f\x89\xb4vmK95\xe7\xe8\xeb\xc7\x99\x8c\xa1\x99\x99\xb6\x9a\x96SS]\x94\x97\xa38EW\x9bhaSA=u`]\xc7\xbd\xb9\xcb\xba\xb3\xd6\xc8\xbf~\x81\x8e\xca\xc2\xc0\x8bTG_LJ\xd5\xd5\xd7\x1a"-4@O\xe2\xd8\xd3\xbf\xc3\xcb\x95\x8b\x8c\xa0\x90\x8e\xb9\x80u\x9f\xa0\xaaeTRzz\x84\xab\xab\xb1\xd7\xc3\xb9\x9e\xab\xbc\xcf\xad\xa3&gt;L`\xbe\x90\x89G&gt;A\xc8\xc9\xcf\xb0\xb3\xbd\xa8\xa0\xa1ZW^c\\b"-;lfk\x82\x87\x95\xd0\xc2\xba(5F\x8c\x83\x85\xea\xe1\xe0\x81MA~faZl\x84\xa9\x8a\x84uB6\xc3\xcc\xd8\x80\x90\xa5\x8a\x9d\xb3\x1a|\xf9\x1f\x00\x00 \x00IDATx\xda\xdc\x99{PS\xe9\x19\xc6%&amp;\x1c\xc9\x05\x9b\x18E\x81\x04\x89 .\x1a\x05W650\x80\x88\x89l\x98\xd0\x92\xaa\x19)F\x19\xb7D\xd6\xce:\x194\xd0,\x96\xdb\x06\x01\xc1n\xc1\xc2\xce.\xe2\x05Eg\xa1"J\x06\x03*\x8c\xb6\r\xe3\x16\x8aV\x190\xba;\xde(\x83\xac\xa8+.\xee\xad\xef\xfb\x9d\x00\xcen\xff\xcc\xc1\x9d&gt;9\xe7#a\x98\xf17\xcf\xf3|\xefw\x90\x193\xfe\xafE\xbd\xaa\x9f\x11\x93Rm2\x99\xd4j\xb5R\x89\\\x88\xf6z\x01\xf1_7u54\xde\xed\xae\xec\xee\xbe\xfb`\xa4\xf1QsC\xd6*PbW\xb9\xfau\x81\xa1OY#\x95\x9dIAg\\Z\\\xb7$)\xe94\xaa\xf3f\xf7\x1d\xd3k\x00C\xa6\xf2\xe6\xbb\x9dK\x16\x1d\xf0?\xb0&lt;\x03D\x96\x8c\x8c\x03\xa8\x0cx\xd5=k\xa0^\x03UWceR\xd0\x1b\xfe\xcb\xc3\xc2\x82+**D"\x91\xeb\xae \x9fp\xed\\EM3\x94:q\xe4&amp;@-[\x1e\x16,\x12\t\x85\xc2Pa\xa8K&gt; X\xe1\x9d\xb0\xe2\x99\x89\x9aN(e\xe2\x83\xfb\x0b\x16/rA\x89\x04&gt;\xb4\xb8&gt;\\\x94\x9cK\xcb\'t\xa8QIM\x9fSY\x0f\xee\xafX\xe4\x8fP\xbe"\xa1\xc0\x87\xc7\xe5:\x91\x86\xe5\x94sY\\\xf9\x94\xb8&gt;/\xbb\xa8i\x822!\xd4b\x02\x15\xec+\xe4\txh\x0c\x0b\xa8\xd0$\x96\\"\x97\xc8\xc4\x12\t\\\x12\x89\\\xde38\x1dv\x81S\xcdw\xf7\x06\xa1S\xc1`\x95P \x10\xf00:@\x12\xfa\'\xdd|6v\x1e\x80d2\xb8Pb\xb1D&gt;\rvQT\xf9\xa3\xee\xbdAhT\x18\xc9\x0fK%\xf0\x11\x04\x07uv?h\xdcq\xf5\xfeh\xfd:\x89\x0bI\xa1P \x98\xa4gP\xcd0\x17\xa5l\xae\\\x11\xb4\x88N\x0ffA\xf0?\xc1\xad\xd0\x9e\xba\xca;\r\x03m\x9f?m\x95\x8a\x01\x83 \xc1\xc5W\x1001\xe3vQ\xa6\x07I\x8b\xfd\xe9\xa2\xfb\x82U\x15\x9d\x17Z\x85\x15I\x83\rYmc\xa3\xad,(\x12\x04\xe8\xf2J\xc6W\xf0i2\xb0\x8b\xd1YO)\xdbV\x9c\x99\x82\x12\x89^\x8e\\[\xbedpU\xf9\xf5\x0b\xf5^,\xdcwP%1\xcd\xa5P\xf0\xf9\x1c&gt;H\xa1`\xda.j\xe0\xadeP\xf4`\xd2)\x18\xa0C?t\xf55\xae2U\x8d\x9d\x07(\t\xdd&amp;&gt;\xae\x10 8E\xa8\xe0\x8dL2\xc4\xe8fT^]\x86=\x87R\xf9\x8a\x04\x02\xa1\xa8\xee;\x93\xa9\xfc\xc5{\xa3&lt;\xaeT.\'\xfe \x05\xb98 \xb2\x02\x9cB&amp;\xafc\xf0\x08\xa2\x12\xdf\xa2\x8b.D\xc1`x\xb9J]^s\xa5\x9e%gI\xb0\xe1\x1c\x1a\x8aOC\x81&lt;\x88\xe0\xdb2\'\x83vQ}\xcb\xd0)\xa1@(\x84\x05\x86\xe8\xd0\xb3\xbbc\x8fy,\xa9D\x1c\xa0\x08P\x10*\x84#D\x93T\x04\x8cA\xbb(\xf5{\xc1"B\x05\xf9\ty^0\xcf\xa5R)\x8b\x85%W\x10\x9e)\xaf\x00\x05o\x02\xb5\x14\xde\xc8\x98\x1b\xf5\x94\xe9s\xcc\x8f\xc7\x13\xe0\xc2\xf5"Tr\xb1T\xa2\x00\xab\\\xdb\x0e\xac\xf2pqyL\xdc(\xbe\x8c\xb1\xcdH\x95\xdf\'\x01\xc2Y\xc3\xe3y\xb1X\\\xa9\x14\xce\xbc\xb5\x01\xa4\xea\xa4\xdft\xa7h\xacW2\x04\xbf8\xfc\x1e\xc6\x1e$\xba\x9e\x92\xa2\xf30?&lt;\x91\xa5X*\xa8\x15\x0e\x04\xbcp&amp;\x10\x05\x12\xae\xa9j\xc1\xfdDq\x93\x99\xe7.\x8az1\n\x0f\x0b\x02\x9e\x17\x88\x85"\xa3S!\x0e\xe0\xbb\x9c\xc1Q C\xaf&lt;\x02\'\\\xa2\xdf\x05\x02\'\x7f\xa8\x81\x91QOQ\xb7\x1fC\xd1}\x88Y^\\\xf0J*VH\xc4\x9c\xf9\xe1\x0bg\xaf\xa45{\xe1R\x8e\x02\x9em`\x86q&lt;\x96N\x8a\x00s\x9e\xff\xc0\x10V\xd5y\xb0\x8a\x0b`\xd0v\x16\x8c\x05\xa9$ p\xae\x9f\xe7\xbc\x99S\x9a\xb7\x12\xc8\xe4=\xf0 \x1f\xca\x95q\x90)&lt;\x1c\xc18|\x99\xe2\xa5\x89\x19\xac\xbez,\xba\x17\tQ\x02\xc5\n\x98?\xc7\xcfs\xe6L6{\x16{\x16\x11\x9b\xcd\xa6\xc9d\xce\nB\xa6@\xcfh.\x85x\xe8;f\xb0\xae\xb7b\xa7\x00\n\xcc\x92\xb2\xd6\xae\x9e\xe3\x19B\xa0f\xfd\x82\xa6\xc2/\xf0\tL[y\x8b\xef\xac\x18\x022\x1f\x968\xd0\x15\xa3\xc4\xf9\x03\x13{\x91\xa2v\x0c\xd3T\xa4\xf1k\xe7\xfb\xcd\x03&amp;61\n\xfc"\x17\xb9\xf1\x13\x80)\x9c\xc8%\x0c\xe5J8\xf31E9\xf7t9#XW\xd7M`qY\xc4*WvS\x9a\xfc\x06\x1b\x1d{N:\x16\xea\xe3%\t\x0c_\xca\x91p\x0f40\x825\xb6\x0e\xb6\xa0\x17O\xe0\xc5Z\x1b\xe8\x172Q)6m\x99\xcb\xb7I&gt;6\x94\xcc\xc3\xd9\xd3\xd3\x03\\Np\x8c#\xe3\xf6\x8c0\xb0\x17)\xf5\x05\xf0\t\x8e\x1e8\x9b\xf5\x9e!\xec)k\xc8;\xf6\x8f\xac\xc3\xfa\xcf\xbb\xf5\xdc\x89\\\xf8\x9b,K&amp;\xef\xf9\x9e\x81rQ\xe5O\x01\x89\'\x04\xb4\xd5\x9e\xde\xec\x1fg\xf7\x93@ga\xf9\xd1\xb0\xd0P\'\xf9U\x9b\xc5}\xc9@\xb9\xa8\xacQ8\x12}\x05"_\xa4b\xcf\x9a\x0c\xf0\'\x9a\xb0\x0b\x174\xcc\xf5?\x00&lt;\x19\x13#\x82\xaa\x1a\x85\xe7\x9a\xd0\xb0\xc7\x1b\x90\x8aM#y\xffO\xb1_\xa1\x9e\xb9\xf2\tpa\x92\xd2@\xe7 \x03X}o\x84\t\x9d\x19\xfe\x1f`\xdb]\xf2\xf6\x0e\t\ty3\xe4M\xbch\xad!+\xa2y\xbb~\x06\x82\x94\xa3a\\}\xf8\xf3\xef\x95\xee\xdf\x8am\xa3By\xc6\x82\xe1I*o\x84\x02\x90W\xb5\x11\x05_\x01\x14\xc9\x00\xcd\x9b\x1d2\xef\x16\x9f\xe5\xc3}[\xbf\xf0\xc9i\xf7\x9f?T\xdby\xfe\xd0\x92z[\x08\xfa\xe0\xedM\x1bE\x93\xc4\xc7\xe3M\xa4%+\xa2\x11\xcf\xe0\xa7\xe0g&lt;W\x86\x07\xb6^0\xacYz&amp;\xd1\xfdX;Z\x9du\x8f\xf5\x9e\xde\x93T\xe8\xd4F[\xbc\x96h\x9bv\x1b*\nn\xad\x96&amp;\xa3S\xb5m\xb0\x83\xfa\xaf||(jnO\xb3\xbb\xb1(\xe5\x97\xc1u+\xde\x86pBHs\x88\r\x08\x05(\x11\x13r\xe0\x12\x05\\\xda\xf8\x8d.\xe9\xed\xc3\xbd\xfd\xd7\xc6\x0f\x1d\xfd87A\xff|\xc4\xdd\x93\x8bR_]\x91T\x0fG\x0e\x8axE;\x85P*\x90F\xa5\xd1hT*\xa0\x8ar\xf9e\xc3\x97\xd6&gt;\xdc\x7f\xefX\xfe\xf1\xd2\xec\xbf\x9f;\x1e\xf1d\xd0\xfdX_\xee}\n\xd3\xdd\x93\xd8\x85\x01\x02\x15\x06H\xb0\x1c\xc0\xd4\xd1\xd1\x01\\*\xe4\xd2n\xd3\xba\xa2\xb5\xf7\xf6\x1f\x03\xaf\xccf\xf3\xd1s\x9fY\xd62\x81ua\xd8o\xb6\xa7\x1fl2\xd2u\xd2rm&lt;\xda\x05F\x19\x8d\xc6"c\x07mX\x14\n\xd3\x8c\x8a\xb0;z\xef\x8d\xe7\x1f\xca6\xa7\xeb\xbe9\\{\xf4\xfc\x1d\xca\xfdX\xf7ls\xf4\xabm\xb0\xf9\xfc\xb0U\x1b\x89W@\x85X\x1d\xc6"\x10\xfa\x05``\x1f\xba\xa7q8\x1c\xbd`\xd6\xf8\xf1\xe3\xd9\xe9:\xdd\xbbG&gt;:2\x96\xe5\xfe\x93\xfa\x0b\xfb\x9c\x0fF\xfb\x87\xb56\x1b@\xd1]w\xf9\x82X\x86\x96\x96\x96"\xa3\x91\xe4\xa81\x1a\x0cF|\x19\x8d\x86X(\x16\x9a\xa5\xcb=\xf7\xd1\xf5\xebn\x9f[\x94\xe9\x8a^\xf1\xf4o\xe3\xf7z\x87\xed\x08\x05\x9dr\xa0\'\xaa(b\x97\xb1%\xd2\n\\\x1d\x1d*\xf8`\xb0\xc6\xc4\xc4X\xad\xd6\x18\xab\xc1\x10[8\x0eXf\x9d\xee\x93\xda\xb6\x9a,\xa5\xfb\xdd\xba\x12\xb0\xe0\xaf\x1f\x1e\x1f?\xd6\xef\xc0\xec\xb6E84\xc6"C\x91Q\x13\x81~\x19\xad\x91\xa0\x16\xa0\x8a\xe8E\xaa\xd8\xd8\xd8\x84\x84\xc2\xc2\x84\x98\x98\x04\x0bT\x0b\xec\xca\xad\xbd^\xe3\xfei:C\xf9\x85\xa8\xf2pnn\xf6\xf8\xb1\xde\x08\x9cU@e\xb0Z!7(STD\x875:\'\'\x1a\xb1\xa0\xfd\x1a\x0c5\x06\xa8,e\x85\xb1\t\x96\xf6\xd2R\x08\xf1Dm_\x15\x03X\xd4\x9f\x17\x8cT\x9f;k&gt;T\x16\xd3\x0beF*C\x11\xba\xe3p\xc0\x9e\xd3X\xa3\xe3\xe26\xb7\x00\xa2\nb%s\x15ze\xc9\xb4\x80g\xed[J\xcd\xa9\xef\xe8j\xfb\x18\x08q\x065P\xf9\xe8\xdf\x97\xce\xea\xb2\xdb\x0b\rt\xa55QZ2 \xb0]\x1ak\xf2\xbe})\x91\x88\x89\x83A\xab\xb7\xd9\xb4\xda\x08\xa3%39\x1a\xdc2oJO\xd5\xd5\xd6\xd4\x0c\xb8\xff\x0ff\x94\xbay\xe0a\xf5ow\xa6o\xb1@qb\r\x9am\xf16\xbd^\xbf\x01)T*cd\\IA\xc9\xd7\x98iD\x94\xc3`\xd7\xae\xb1\xe9\xed\xe0\x98\xa5\xccb\xc9\xcfNO\xffe\xaa\xeep_\xdf\x8d\xaar\xb7\xfb\xa5N\x1c\xb8\xd1t\xe9\xec\x89\xd2\xcc\xe4\xc2B\xab\n&amp;\xb9~\xee\xdc\xd5\xf6^\xc8\xcd\xd8\xd1\x92sp\xd7\xae\x82\xcd--1\x06P\x8c\xd1a\x87S\'!\xb6\xc3\x9a\\\x96_j\xd6\xa5\xa6\xa6\xea\xce\xd5|ui\xeb\xc5\x17\xee\x9e\xa7\xa6\xc4\xac\xaaS\xd5\x17w\x9a\xd3\xe2\x92\xa3;T\x06C\xaf}\xc3\x06{\xaf\xa1\xc8\x10\x13S\x14\x99\xb2g\xfb\xf6]%9\x91Pt\xa8\xba\x05\x96\xb2\xfc\xb4\xf6}\xd1\xc9\x90a\xba\xee\x04\x80\x1d\xa99\xf5\xfeo\xfex\xc9\xcd\x7f:PveeU=l\xba\xf8~\x1e\xd8\x15i\xb8\x96\x0f\xbb\xac\xbf?\xa1\x10:\x9d\x1c\x19\x99s\xb0x{\xf1\xae\x92\xcd\xd1\xd1\xc0d\xb1\x94\xe5\xe7\xb7\xb7\xa7m\x01]\xbe\xbc\x05\x86V\xde\xa7\xef\xa4~\xf6\xd5\xfe\xbc\xdf\x97\xfc\xa5\xdc\xbdn\x99n\xdf\xbe]\xf5\xf0T\xf5\xef\xb6\xe6\x95\xa6\x95\x1d:\x9a\xbd\xa5=3\xb3\xac\xcc\x02\x89&amp;G\xe7\xa4l\xdf]\xbc\xbb\xb8\xa0$%%%\xce\x12gI.\xcbLk\xcfL\xbbl\xde\xb4)Uwb\xe7\xaf\xd7\x7f\x9a\nX[\xffT\xf2\xed\xbf\xdc\x8aEQ\xb7/\x9e\xaa\x02\xac\xa6\xfd\x17O\xea\xcc\x1f\xbe\x0b\xcf\x04\xa5\x97\xd3\xf6%\x83\xe2\xe2\xe2R\xf6\x14\xef\xde\xfd\x8f\xdd\xbb\n\n\x0e\xeeIK\xcb\xcc\xccL\x89KI\x83\xb9\x90\x9e\xae\xcb\xcb[\xbf~}\x1e`}R\x9dW\xfc\xf5\xb7\xdf\xb8\xf5\xfc\xa1\x94\xfb\x0broT555U\xff\xe7\x0f\'O\xeeLO/\xfd\xd5\xbe\x9c\x9c\xe48\xb0%m\xcf\xc1\x83\xff\xa5\xdd\xec^\xdbH\xaf0\x9e\x9b"\xe8E\xafz\xd1\x8b\xbdZ\xb6\xb4\xd0\xcb\x10\x98\xda\x19\xef&amp;\xb8\x89B\xaa\xa2\x89\x84\xa7\xb6\xc7\xcaDH\x9a\x98\x19)\x1a\x8feW\xe3I\xf5\x95\xc6+K6\x92\xc1\xb2\xbe\xa2\xaf`\xa1\x0f\xaa\n\xa4T\xed\xc6\x95\x16i-g\x85\xb6\xc8\xa9\xd5*\x0b\x06\xbb\x01!\xd4\xa5P0\xd8\xc1\xb9\xe8\x19\xef\x96\xfe\x03\x9a\x03\x82\xc1W??\xe7\xbc\xe7&lt;\xa3\xf7H\x01T\xfb\x16\x9d\xd9\xbc\xd4\xa9{\xc4\xe4i&lt;\x1a\x0f\x05\x95.B\x01\x95\x1eA\xa25\\\xd9\xeb\xc5Gjmd\xb2~o+\xb4\xed\x1d\x04\x01\xcc\xc0\x0bi\x1cm,i\x1bP9\x1a\x8dB\x01,\xfbbX\xccf]\xa7\x8e\x06\xd8@\x00\xc6\x8d&gt;\x0fD\x18\x86\t\x98\\?\x87\xe3\xf6\xaa\xb2a1o\x8f\xb6\xe2eg\xba\xf3\xcd\xae\xd70(\x8ay$\x84\xf4\x1c\x82,\xe3,\x1b\xa8\xa3(\xaa\xa8\xb3\xe1\x930p\xb9u:xf\x11\x04\xc1\x11\xbd&gt;\x9f\x97c$\x06dr=\x82\xe3t\xd5\xb5\x85\xb3#n\x10\xb2\x05\xb59\xd4\xafV\x07\xde\xa2X`\x84 \xa6&amp;\x8f ,\x8b\x03\xdc\xdc\xc9\xf4\xc9\xc9\xc9\xfe\xbe\xcf\xad\xab\x03\xd4\x89M/\x86C\xad\x06\xb10\xb9\xda\x01X\xcb\x91\xaaki\xae4bk#\x1b\x1b\xec\x17\xb3\x06\x03a(\xf6\x81\xcb `B\xeb\xdb\x9a\xd1\xb3\x01\x93iZ\x0c\x10\xcc\xa2S\xa0\xc8\xc9\t(\x05Xy\xb5\\\r!\x1eC\x04\xe7\xca^\xb7.]\x1cu\x97\x97\xf5\x87|\xb6J\x18\x0c^H\xa3\x81 \x08\x03\xe4G\xad\x9e\x9e6*\xb8a\xa6\xd5j\xc1\xe3\xc9\xbe\x0f\xb2\x08X"\xa4\xdef\xb3\x89\x89t8\x10\x1c2\xaej\xd7\x8cfj{\xe4\xa3\xfal@d\xab\xbc\x81$\xaa^\x031(z\r$\xd9ja\xea\xb0\xaen\xca\xf0&lt;A\x02\x17\xa4\xd1b1\xbb\x81J-\x02\xdb\x8cFdnN\xaf\xc7q(5U2\x98\xd7U\x8eF&gt;\xaa7\x8a\x86l\x90$\x04\x8c \x04\xc1\xeb%\x08/\xe0\xb5\xa6-\xf5a\xeb\x7fb\x85\xf7Yv\xdf\xbdV?\x01,L\xad\xd6\x87\x8dF\x11I\xfc\xcc\xa5\x93!\xcc\x92\x1e=\xd6\xed,\x91\xed\x13\x909\xb9C\x0e\x87\x9e\xf7\x8a\x82\xa9}:\xd3p\x08\x15\x06\xe5n\xb1X\x94J\x85\xc2\xb2\xe6bE.\xd0\xcbf\xf4\xe1,\xce\xa2(\x80\xd1\xe5\xb8`\x1c\x9e\x8d\xdc\x08\x8e\xf5\r\xddn\x95\x140\x074$L\x18\x80X\xa4&lt;\xacsq\x96\xbaB\xe1\x86N\xear\xb9&gt;\xbd93\xb3\xb46\xd3a\xf5P\\\x97Xh]\t\x81\xa2s\xf6dM\x08\xb7F\xff\xc5\x9bl{\xd0\xedz\xa11`r\x87\xe3\x92\x8a\xc0l\x96\xb5\x9e\xa2\xf7~u\xa5\xb3\xd6{\xfcx\xe6\xe6\xf8\xdd[\xab\x8fg\xceg\x15F\xdb\xb4M?\x1d6\xfa@&gt;\x11\x0b\xa7\xa2\xe5\x1aA\xf2\x0b#\xa7\xbarT\xdc\xde\xf6b\x0e\x87:\x9fg\xe0D\xc2I\x9c\xf6\xe9z\x8f]\xe7\xab\xd7_\xdd;\x7f\xff\xe2\xe9\xf8\x8b[\x0f\xae\xadN\xcc\xcc\xcc\xb8\xdcF8\x87 \xd6wX\x1e\x94*\x95\xcbUC\xf0\xf6\xe8\xb1\xce\xb2G\xdbY\xd2\x01cW\xcf\x10\xa4\x00Ta\xf7\xda\xf9\xac\xee\xfc\xfd\xf8\xc4\xe3\xf1\x17\x97\xaf\xaf\x9f\xdf}11\xbb\xd5\xeb\xe9Pc8l3\xa2\xa8\xf2R,\x14\xa5\xda\xc9x\x8d(\x8e\x1c\xeb\xca\x95\x8d&gt;`\x11\xd0C\x9199P\x91j\x1b\x88u\xdea\xcd\xbdY\xed\xa7"\xd6\xea\xc7w\xc6\xc7\xef\xcd.\x99]=\x97\xc2\xe2\x03\xc1P\xe5wX8E\'\xe3Aa \x01\x168\xaen\xd6\x809\xf2F\xdc!\xc0L\x99\x0e[\\\xbd\xd9\x00\xbb\xcf*4\x8a\xa5\x9b"\x11\xf8\tM\xa7\xe3\xd6\xad\xad\x99\xdd\xa8\x11A|\xa2Z\xa0\x15\xca\xfa\xe1\xad\xba\x88\x19$\xc0\x1a;\xdb\xee\x06\x83\x84\\\x8d\xa0yh\x13j\xa8,(xq\x04\xd6\x95\xf5@gV\x0b\xa1\t\xd4\xebu\xb7\xdb\xdcs\xe9,\xd0L\x11\x16U\xb2"\x16N\xdb\xdb\x89"AJq\xbf"b\x15\xe1(\xeaU\xf2o\xc52\xf7\xb68\x84;\xa9T\x10\x8e\x0b,\xee\xd6\xeb\x1e\x0f&lt;\xb0u\xd6\rr)}\x97Xb\xf8\xf0\xb4=\xda\x8e\x07%\xc1\x92-\x1cu\x83\xd5\xaa\x801\x06\xe8\xf3r\xbd\xd1\xed\xeau\xb8JehJ\xabL&amp;\xb0\xac\\\x85\xe2\x96\xb9\x00\xc7\xb2\x16\x1dT\x97\xd2\x07\x06\x07e}b\x7f\xa0\xed\x91v(\xc8\x18\xa4\xb8S\xbc\rX\x03\xf8\x97\t\xe8X\xe0\xa1|\xe6\xb5\xad@\xc5\x04\xb3\xc7\xc4\x98Lt\xca\xca\x99(\xce\n~\x9aeE\xb9tJ\x14&amp;"\x8e\xfbp\x14\xe5\xfc\xd1H\xf2\xb0\xbc\xec\x95beJv\xd4\xafUkUp\x0f$\x89\xa9\x11\x8bn\r,M\x06\xf4c\x98\n\xe7\xb7\xe6\xec~\x7f u\x11\xf5s\\\x05W\xac-)qD\xe4\xf2\xf9P&lt;MG\x92\xf1C\xbfv[\x92\x8b\xe1\xb3~\xb0\x16\x0c\x02\x17I\x90\xea\xb0E\xd7\xa9\x80y\x18\xf0%\x86\xc9\xd8\xfd\xa9f\x94\xb6\xd3\xfeH\x9b^\xa6\xed\x14\xda\xd9R\xa0&gt;\x04\x8c\x96\x91e\xa9\xa8\xbd\x19\xd9\x0cY\x0b\xd2\xec\x97\x8d\x1d\x89X"\x95\x88\xe5\x06\xa3%\xf0\xd5j\x89gh\xc0\xf2\xa7\xec\xb4\xbd\x14iG\xa2~;M-k\x96\x14p\x00\x11\xd1\x01\xaa\x18\x1a\xd4J$rg\xd2\xacB\x8c\x9d\x1dB\xc0\x88\x06\xaci\xa3\xa5\x9e\xe1\xab&lt;\x9fa@$(\xaa\x8b\x14\xa0]4/R\x17\xa9H\xc4O-7\x96\x94\xa8\x0f\xec\x16\x82\xa4Ke{s3\x1e=\x95h\xbbL\xb6\xf0\xb7\xd0a?\x0b\xde\x94\xc4lF\x0b\xc7\xf3\xd5R\xc6\x0fg\xaf\xb1(6\xad\x86v\xd6\xb9#F3i\xf7\xab\x14:\xb7\xa8\x96~N\xc5\xb4\xcb\xc9\xcdD\xa2\xbcqE\x9a\x90\xdd~\x16\x0f\x9dvEc\xaa\xb6\x85q\x86\xaf\xd6\xca\x99\x80F{\x13F\xcf\xd3\x89\x89\xf1\xd5\xd5\x87o\xee\xac8\x9d{\xb9f\x8a^V^\xb6\x08\xa0\x8a\xb6\xdb\xedB\xa2\xd6\x95nY\xea7\xa1\xd0i\xbfx\x89e\xa4\xc0+\'\xa3)\xcd\xcd\x17\xb7\xae]\xde\x1a\\\xbb.\xde\xb0\xbcz\xf3\xfcu,\xb6\x93\xa2\x80\x0b\xe4J3\xd1r\xb9\x9dlo\xc6\x8f\xa4[-\xdb8&lt;&lt;=\xed{\xa1?\xd8\xf4&lt;/\xf8s\xd6\xf5\x89\xbb\x937\xa6&amp;\x1f\xbc\xbav\xfd\xb3\x07\x93S7\xae\xde\x98|u\xf0\xf6u,E\xab\xa0a!\xe9t&amp;\x99L\xb6#\x85\xc4\xe1\x86t\x9bec\xcf\xe2\x87\xa7\xd9\x01)\xcf#\x0e\xbe\x94\xa14+\xf7oM]\xfd\xc9\x8d\xff_\x93M]\xfd\xc1\xd4\x83ko\xf7rv\x95\n\x87C\x98f\x92\x89x\xa2p\\\x98\x97n\xfbT&amp;;J\x84N\xb3^R\xae\xd7c-yZ\xb3\xbe\xfa\xf9\xad\xc9\xa9?~\xf6\xea@\x8c\xfbo\x0e\x0e\x1eL\xfe\xea\xee\xfd\x87o\xbf8\x8e\xa4!(U:*\xf6\x86B\xa1\xf0\x0f\t\xd7\x03e\x1b\xf1\x97\xdb\x80\x85\xe5\x1d\x02!P\xda\x89\x8f\xd7\x17\xc7W\xef&gt;\xbc\xff\xc9\x9d\x95\xe7\xef\xee|rp\xf0\xf0!\xfc\xe9\xde\x9d\xd7;\x17~VE\xab\xa2\xd1hd3\xbeY(l\x9eI\xb8L)\xbb\xdd}\xf9,\xeb%H\xb9\\ \xc5/\xe0\x16\x03\x95J@\xb3\xb8r\xef\xde\x93\'+O^\xbf[\x17-Wc\xf6\xc9z,g\xa7\xecv\xca\x0f\x1d\xeb\xd1|\xe2\xf8\xf8\xd1\xc2\x15\tCvt\xd8\xed\x16\t9`a\xcc\xb2vQS1\x89\xe3\x87\xb6jv\xa1a\xa5r)\x8ec\x03\x8d\xad\xd9u\xe8\x12\x91h\x89\xf6\xfbs\x85\xf9\xf9\xcd\\\x0eJK\xca\xdf\xb2l\x84B\x80%dHA\x9eVi4\x9ci\xc8\x0f\x06\x83\x1a\x1f\xa5#\xd1H\xc4n\xaaT\xb8@\xa3\xd1\xd9\x8d\xc5\xac\xa9f!\x19i67\x01+\xb5s\xfc\xcd/\x17n\x8fI\xc65v\x1a?\r\xf2\x02#\x08\x0cE{\x96\xd3\xa6L\x8b\xe7\xf9\xd6\xd0d2\x89\x1f\xae\xceq\x94G\xd1\x00\xedb\xb1\\\xae\xd0l\x16\xe6_\x16rV\xe7\xbb\x8f&gt;\xfa\xed\xdf\xff\xfa\xb5d\x0b\x95\xfd\xe4i\x96\xc80\xe0fT~\x1a\xda\x12\x9f\xe1\x87s\x01E\xa7\xd3\xd0\xc0{\xacB\x13\xb0z&lt;\x1eM\xaa\xd9\xb4\xee\xe5r) \xfb\xf7|d\xc7\xa9}\xfe\xd5\x9f~\xfe\xa3\xff\xfc\xf4\xf7\x12\xfd\xf6g,\xc8\x1cvaB\x0bL\x89\xb1\xdb\x19\xf90\x93\xc9,\xd7\xb5\xbb\xda\xf5\xf5u\xe7\xee\xae\xd5j\xd5\x00\x955\x05@)(/8\x82\x8f\x92\xd6\xddE\xed\xd3\xdf\xfd\xf8_\xbf\xfe\xd9\x87\x1f\xfc\xf3K)6md_\xef\xa5\xcb\xdd \x9f\xc9\x94j\xa5(/d\x18fHS\x9aE\xa7\xf3]\xcc\t\xf5\x14\xdb\xb1\xc6\xac\x9e\x1d\xb0\x11\xb9\xe6\xde\x17\xc7\x00\xf5(q\xb1\xbb\xb8\xd8x\x7f\xe3\xc3\x0f\xbe\xfa\xc5\x0f\xbf\xf7\xfd?|3r\xc1d\xb2/\xff\xf2g*\x1d:\xadF\xa3\xb5Z\xb9V.9\xc4&gt;\xeeOYc\xeb\xce\x1dg\xcc\xb9\x17\x8b\xc5vE\xa9\xfe\xcb\xca\xb9\x065y\xa5q|\x02\rY\x04dC.\x06\x02$\xdc\x024\x90\x10p\xc0@7\x84\xa4\xd1\x92Q\xd1`*\xc2\x8a##\xb3\x1b\x10\xd2\x8a\xa0\xd4A(%\x18u\x01\rx\t\x10@\xae\xae\x17\x18.r\x11\x91Z\x08S\x8c\xe2\x98P\x11\xb5\x84\x15\xd8-\x82@PX\xad\xda\xees\xe2\xec\xd7\xdd\x16&lt;\x93\xf7\xcdL&gt;d~\xf3\x7f\xfe\xe79\xe7y\xcf9o\xe3\x9d\xb22m\xb5V\xab\x03\xbf\xdfP\x1eL\xd8\xf2\xcd\xa7\x9c\'&gt;l\x8f\xbb"\xdb\xa2\xa7\x83\x1f\x96\x0b\x87\xdb\xa4\xda\xeaR\x9dX&gt;\xdc\xd6Z~A\xdd[\xd9\xd6\x06\x13\xd3\xe8\xe8\x93\xd5\x99\xf1\x05\x15u\xb9\xb9\x05\xa0XnA\xdd\xa5K\x03U\x95*\xd5\x80Vk\x9c\x93\xab\x93\xcf(\x0fflK\xdfH6\x1592&lt;\xd9\x9d\xd8\xe2\x92\xf5\x1f2\x90\x90\xe3\xa7\xf4\xedO\xaa\x13\xa3{{/\x96W\x1a~\x18VC \xf7_\xbc\xf8]f|\x02Z;@k\x047\xe2sA\xad*UeU\x95\xeaR\x85V\'o\xebS\x9e\xc9\xc8\xd8\x92\xfe6\x88\x0er1|\xd8\r\x98\xe9\x07-\x1f\x90\x0bW\xf8\xc0\xa3\xc1=J{9\xb1\xbc\xb7\xb5\xb5R\xf3rx\xf8|kk\xeb\xfe\xe8\xb3ii[\xcc\xc5k\xfcI\xf4\xa9.{\x03\xa3s\x95\\\xd5\xa85\xea\xe4\xe5\t\xca3g2\xb6\x1c\x7f\x1baijv\xf4svf4`\x8bo\x8d}\xa8\x81\x1b|e\x0civ\xaa]X\x88\xce\x8e\x86 \xaaG^\xfe\xf0\xb2\xf7\xce\x85\xd6\xe4\xd4\xfadHXig\xcf\xa6u@\x9d\xd8\x91\xfcf\xe0B\xa5Z\xd6-\x937j\x97uU\xf1Jh\x19\xfb\xbex\xfb\xf9\x1f\x1e\'\xb1\xef\xe2\xad\xd7\xb1D\xb6\xc5MW?\x08\x17.\xb4\xf0\xaaQ\xbc\xd4\x1c\xbcx]\x94\x99\xbd\xbb\xf5|\x9bZ\xa31\x0c\xf7\xb6]h\xcb\xd9\xff\xac\xfc\xd9\xb3\x0ehi\x1d\xa9\xf5i\xc999w*e\x86\x91n\x99l\\kT\r(\x05J\x88\xe27\'\xden\rz\\\xec\xe7g#\xa6`\x1c\x14\x98\xa4\xa6\xe7\xab\xe7\xc2\xe1\x0e\xcc\x964-*\xa6\x9b\x16g\xda\xb1\xfd\x89\xd9\xf57\xdbd\x80\xa5Q\xab+{o~\x95\xfa&gt;\xc7\xa7A\x81X\x0f\x85\xaa\xcaP)Cb\xcd\xe9\x8c\xba\x81\x84\xd8\xf7X\x0f\x8fm\x8da\x16\x07x\xe1\xc5\xed\x81O:9\xd3l\xf6\xec\xaa\xb1B\x07\xa7&amp;=\xa3\x16]j\x83\x1b\x14\x11\x9c\x9e\xdd\xd9\xbb\xcb\xd5\x06\xc3\x88\xe6\x1c\xccU_\xf6\xdelM\xedH5\x0f&lt;g\xa3\x0fe\x96\xdd\x91\x8f\x18\x00J\xae[6\xea\x1a\xeb\x10\x15\x98\xeb\xc4\xabo\xdb\xa5\xeeI,V@\x97\x98\xe2\xd0\xc0\x9c\xf6\xbc;\xb9\xda-\xf4\xa1\x8f\x86\xa2\xfc\xa6\xa3\xe6\x93\x82\xbb\xc41A\x81\x8b\xbbKS\xfe\xd2\xa6\xee\x1e\x19\xd1h\xce\x9dS\x0f\x0f\xff\xb4?\x15\x06\xe8\xd3\xa7\x0f\xe5\x94gV\xabT\xf2n\x88\xe0\xb8\xae\xbf\x7f\xd9Xw\xc4\x8c\xa5&lt;\xf1\xf0\xd5F\x12q\x9d3\xcb\xc9\xc1Ad\xe3$\xc4$\xddur\x9eZU\x18q\xb8\xc3%\xf3\xe2\x90$6\xa2\xe2\xb6\x07\x91\xe7\xa3\xb3\xb37\xe4\xf4V\x1a4\xa0\x17\\\x06uYk\xf2\xd9\x84\xea7\x03ew.5V\x81P\xddr\xb9\xb1\x1f\xb0r\x8fH\x04qJe\x9c\xe0\xe1\xab\xb7\x9fp-&gt;\xf6\xf3c\xf9\x05\x88\\\x15\xa4\xa5"&lt;\x9e\x15ux5i\x15\xb2\xd5\xa2\x18s\xef(\xabv^,\x8d\x89\x08"w\x9dN\xccN9\x94S%\xeb\xd6\x80\\\x1a\xcdHwee\xd9\x9b\xba\xf1\xc6\xaa\x0bF\xc8\xear\xb9\\\x06T==\xfd\xda\x02\x9e@\x10\x17\'\x10\xc4\xc6\xbe\xba\xf6\t\xd7\x06\xef$\xa4\xa1\xb3\x12R\xe6=\x96\x8d\x03\xab\xe8\xe9*\xb2\x17\x0e\xd7\xb2\xbc`\xd7\xfc\x022t\xa7\x82\xdb\x1e\xe1Mn@X;\xd3\x92\x1be#\xdd\x86\x91\x11\xc3\x88\xc1 SU5\xce\xc9\xbb\xab\xfa\xe7\x00k\x0e\xbc\xde\xdf\xd3\xdfSQ\x10\x89\xd6@\x05\xb1YY\xaf\xc2\x8e\xed\x15:\xd8\xe1\x85X\xac\xbb\x8b+\x8d\x18\x80\xc7\x07\x149G\xadf;\xf1\x81\xa7\x93\xc1\x8eM\xc1l\xcfN\x10\x8b\x14\xb4\xd6{&amp;\xf3rbi\xe9\xce/3\xab\xc7\xe5\xd0\xe3\xba\xc1\xe02\x15\x88$3T\x8d\x03\x92\xceh\x86Z\xd4\xe7\xf1\x01+N\x10\xcbCO|\xbf\xbdnm\x87\xc7\xe3\x1d\x9c\x02\xc0\xf6N"W|R\x91\x07\xe3\xe9\xca\xdd\x85{T2\xc9\xf6rn\x0en\x10\x89\xa4$B\xd0\xda\xa0\x99\x1b__\xce\xfeG\xca\xa9m}\x15\xe3r\xd4@\xa1q\x9d\\\'\x97!\xa6\xe5\xe5e\x08\xe0k}Mx~8O\x12+\x10d\x85A\xc1\rXv\xd6\xd6\x0e6\xa25\xd666\xd6b\x9a\xbf\x9dW\x11\x8bU\xb2r\xacP\xd9\xe4\xd1\x06\x0b|\xed\x82\xc8B,%P\x83\xd6F\xcc\x14\xd4_\xce.M9\xf5\xa7m\x19\x05\x15\xe3\xe3Pl\xe9\xc6\xb5\x93F\x9dN\xde\xb8\xdc\xd3\xb3\xd8\x83\x9a\x9e\xbf\'?\x9f/\x01We!\xb1\xc2\xae\xfdu\xc6\xa1Shm#\xa2\xd1\x88\x10E\x9a\xbf\xb5\x9d\x83\x9d\xd7\xd8\xca\xc5*42\xd83\xd8\xe2\x05\xb1\x82\xa6\x88!\x04A\xd5|\xbf \xfa\xb3]\xff\xe5\xca\x85i\x82\xb6\x1fb\xd6\x83d\xd2/,L,,"*\xd0*\x8cg6\x16h\x15\x16\x16&gt;cc\xd3)&amp;\xae\xb3\xb3\xa6a\x89B\xa2\x8b\xc5\x1a\x91\xd0e\xe51\x84y\xdf\xa2\x1f[\x8cI\x9a!\xd9J\xb9$\x02\x95\xb4u\xef\x1e\x84\x95\x98\xb8!e\'p\x1d\xcc\xad\xa8\xab\xcb\xad\x99\x98\x18]@\xb7\x89\x89\t\xbd^_\xc3\x0f\x0f\x0f7\x1bK`\x16\x8b\xc7\xbb/\xb6\xb0VPl\xfd\xd7Y\x8b\x88.B\xa2\xff\x1a\xa1\x14\xcbZ\xf9a\x16\\\xe8U\x86\xf3\xa2\xd8$j\xe7`\x85\\\x12\x95 \xbe\xbf\x91\x9f\x10\xfd\xd9\x8e]\xbb\x127l\x00\xae\xbe\x84\x1b7r\xc1I|\x00\x1a\x1d\x9d\xa8Y\xa8\xd1\xbf\x06*~xd\x9e\x00\xed\x8a\x90\xf0\xb2\xb2\xb2${\xc4.k\\\xc5$f\x08\x8d(\\cM\x042.s\xa9\xe8E\xcbJ\'\xaa\xb8MS\xbe&gt;\x0b$\x13\x97\xc0\t\x11KIT\xe6|\xde\xb1\xbc\xf8\x8e\xed\x80\xb5+\x1b\xad\x9e\x00\x18L\x99\x01\x05\xb5\t=\xbaGF\xa2\xedd\x12\x899e!\xb5by\x9d\x16.6\xae\xae1\x96d{\nWH\xe3\xd2@w\xba\xe9^s\xd4\xf3\xc1\x95\xd5\x8e\xb8Ms\x9e\xecy\xaaIL\xc2Z\x88\xe1\xcfL\xb7\x06xPIo\xbfm^^-=\x95\x8e\x16\x9a\xfa\x0e\x1eA\x1b\xb5j\xf4\x10\xc6H&gt;P\x81Z&lt;\x94\xde\xe1\xd7\xd1Q&gt;O\xb2G\xea\x02\xfa\xb8K\xd7\xfe\xf1\xa3@\x0e\x89\xc4\xe1p\xe8p\x99\xee\xd5\xfa\xbcX\xd9\xdb\x06@-\xb6gW\x8c\xc9IJtU\x00\xd6\xd2/\xdd\xd5}i\x80\xb5}\xfb\x8e\x1d`\xfbt3W\x86\xf2\x08\x0f\xd1\xbco\xf0\x1d\x06\x12\t\x04\xfc\xef\xc5b)\xda&lt;Lb\x12\x85nn!\n\xc2G\x96\x81t\x82=9\x10\xa00\x18\xa6i\xba\xd6\'\xaadv\x05\x0f\xebq\x9b\x9e\xb3}\xe7\xb7&gt;N\xea\x12\n\x15\x10\xc4\xa5_g_\x9e\xee\xa8\xbf}{\xfbm\xb4\x80^z\xea\xf8\xf1-}}\x19\x07\x95\x92\xbc\xbcHs\xe3\xf3\xc3\xa1\xe3A\xc2\x8a\x15\xe8\xaf\xbbqI$\x82\x15\x99\xce\xb4\x95\x92\xdc\xb8\\.\x89B@\xc7\x94\xec\x99\x18&amp;\x96f\xeb\xe6\x9eT\xeb\xe3\x135\xf4\xe8w[\x0cw`\xea\xa8\xef\xc2\xde\xc0\'\x9e\rB!\x18\xcc\xf4\xf3\xd8\xa3\xf3\xf5_\xdf\x86\xf6\xd5\xdf\xfe\xbc#;%\xfd\xf8\xbe\x8c\x0c\xe0*8\x82\xb8\x90X\xe1\x80\x05y\x142\xd6\xf71\x94\x18*\x95jO%@\x17\xa6S(n\xd0k\xac,\xc9\xe4@:\x06\x8b\xb5%\x12m\xb1O\x8aj\x83}\x1c\x9b\x86Z~W(q\xa1\x83W\x87&amp;\x9d\xd93V\x18/_\x91"\x86\xe3FX\xfa\xf5\xca\xe1\xe1\xd6\x9f\xfe\xfe\xcf\x1f\xff\xfd\xa3z\x7fb\xca\xa9\xe3\xfb\xf6e\x9cIx\x8f\x05L\xa3\xe1\xf9\xf9a\xc8\xe6\xb1\xb1a\x9fr($*\x92\xcb\x9eje\t\xa6\xa2P\x08\xde\x96\xe4\xc0@:\x07\x83\x0e6\xbb\xba\xd0B\xee5\xd72&lt;\x1d\x91b\x07~\xab\xf9\xcd\xe7\xe0\x87Jz\x1aX]B\x8e\x7f\x00\x0c=\xdc\x18\xb2\xe9\xe7wW6\x1f\xde\xbcy\xb0\xb0P3W\x96\xf2%\xa8\xf5\xc57J\xa5\x00\x82\x88\x92U8\x12\x8b\'\x01\xaa\xac\xd8k\x9fs@!\n\x95J\xe6X\xadEX$\xaa%\xf4E{:\x87\x89q\'\x12\xfd-,\\\xdc\xfd\x8b\x8b\x9c\x19\x8e\x8e&gt;&gt;\xa0\xd8\xa6\xdf\x04\x86\xa4zZ\xf2 8x\xde\xd9\xb7\xd3\xc2\xabSJbJ#\xc8\xa6\xe6\x7f\xbdk\xd9&lt;\xb8\xfe\xf0\xfa\xcd\x1a\xb9\xea\xbbt3\xd6C\x81D\xc2\x8bD\x99\x1d\xa8\x90Xh\xd4\x11\xe4Gp(n\xdc\x18\x10\x8a\xe0\xedM\x06\x1a{2P\xd1\x11\x15\xd6\xdd\xdf\xdf\x1f\x1d\x90#~\x9c\xe4\xec\xe1\x88\xde\x03\x12\xd544[\xf8\x7f\x1f\xe9@\xa136\xf4\xe2\xc1QOO\xb6o\x00\xa3\x01\xef\xa4 \xd9\x87H\xbd\x03\x97\x9a\x7fi\x19{w\xe5JK\xcb#\xcd\x94\xfc\xe4\xfb\x15\xfd8\xc8N&lt;\x1e\x1fi\x95\x0f)\x8b\'AX\xaf\xf9\x11(\x19\x90\x08\x96t\xaa\x15\x15\xa8\xe8\xe8\xdc\x1b\xdd\xdc\tm]\x80\xca|\xf8r\x1d\xc8\xe5\xc1`\xd4\xa2\x17\x94\xdc\x1a\x9a\xfd\xdf\x1e\x83Bg\xac\xe4\xd6\xd1\xa8`\x86\x07\xdb\xd1\x97\xe5x\xd7\xc2I\x1c\xf4\xf8?|\x9c]h\x1b\xe9\x15\x86\xed\x914\xb54\x1a\xc9\xfa\x1bi\xa4\xd1_4\xa3\xd1X\xa3\xdf\xb86\xeaB\xd3\x8d\xd0E\xdd\x18\xc3\x82\x82Y\xc3\x9a\x84@\x1b\xf7"\xbeX\x8c{\x11_$u\xe2\x1aZ\xd3\xd8JYJ\x9a-M\xf0\x8d\xd4`\xc3\x16\xbb\xb9r)\xa1\x85U\xea6\xad\x97\xf5\xb6nH\x1dL\xd8\x18\xc3\x9a\xdc\x14\x92\xf6=\x9f\xec6\xdd]\xfa\xd9q\x12#\xf0\xe3s\xce\xf7\x9es\xc6&gt;\'ZEY\x99\xfagk\xa7\xd5\xdaY}\xbe\xb3\xb3\xdf\xc1j4P%\xbcq\x8d\xce)J\x85\xdf`\xd6:}\xf7T\x04\xb1\x95\xf0\xf9\xf8\x04\x9f@\x84\x95\xdc\xa4\x0e\xa5l\xb6D\x93n\x1c\x1b\t\x8dF\x83\x8b\xa8p\x94\x85\x05\xe5\xce\x00\xadM\xf9?\xb7\xf2+\xb8\x7f\xabOv\x0b\x03\x03\x85\xb4\xa1fT#o\xaam\xcf\xa7|\x16\x15\xdc\x84l\x16\xef\xec\xef\xec\xef\xbf|\xdej\xb5.\xbd3?9|aj\xecmd\xe3\x0f\xc6\xc7Q4\x8c_\x83l!\xb8N\x8f]y&lt;\xae\x03\xcbG\xc7]J\xd6G#&lt;\xa8\x02\xd9P(\x9bt\x12\x96=\x18\xb4\xc7\xfc\x0e\xaf\xa6i\x8bZ\xb18\xb1\xb0\x02\xb2\x8d\xad\xfd3_^\xb3\xa2\xfbZ}\xba4#\x17\xc8V\xa9BAN\x1bF\xe1`\xbd.es\x9cW1\x8b\x85\xf0\xca^\xab\xf5r\x15\\\x97\xce\xbf=\xbf\xf9\x9b\xe1\xc9\xb9\xcbo\\\xfb\xe0\xfa\xf5\xf1\xeb\x00\x83#\xbf~\xfa\xdd\xb9\xb9\xdf\xde\xf8\x16\x0f\x97\xe1\x1e\x96|\xa5P%\xc4St\x95\xb2![2\x14r\x0e\xe6\x88*h\xe7\xfc9OX+\xa2#\xca\x17\x8by\x90eF\xee\x1d\xee\xff\xfeK\x95\nP\x88t\xdc\x8eT*\xadf2\x05U\xd1\xc25ah\xb4|\xc2\x13n{\'f&gt;[\x9e\xd8\x03\xd6\xf6\xf3\xd6\xc5\xef]\x1e\xbb:y\xe1\x02\xb8\xc8^\x00\x1b\x1f?u\xea\xfbcs\x8d\xf9\xb1\xbf\xdf8\x07\xac@@\x92J\xa0\n\xe8\x16\x04;0CN[2\x89\x88w\x04\xfbDQt\xf8\xa3\xc1pX\xd3\x8ay\xb8QI\xdd\xc1\x01\xd8\xd2\x17\xfd\xf7\xb53\x80B\xa8\xcbFZUeU\x96a\xac\xf6z\xad\xc2y\x97\xab}JX\x13\x17F\x06&gt;+\xae\xbc\xda_\xed\x07\xd7\xa5\xf3cW/\x0c_\x98\x9co\xa0Z\xb8L\xbf\x05\x8er\xe6\xddFc\xee\xf4\x0f\x9f&lt;8+EJ&gt;w\x04(\xc9\x80\xae\x831\x01{\xd1\x98s\x07+Hsr1?\xe7\xa5%3\xc5\x05\xb2\x81*\xdfI\xaf\xac\xdc\xc9|\xd1T\xcf\x9f,\x11\xd6\x80Ar"\xab8)\xa3\xddn\xd7C\xc1\xb0\xa6\x14\xday\xc5T\n\xc6\xa7\x81\xeeg\x90\xd5\xed\x9d\xd6\x87\x8dM\xfa\x05\x9b\xf9\xf9\xf9F\x83\xea\x85\xb7\xde\x1akLM5\xe6\xc6\xae\xec\xff\xec$\xcf\xf3e7s\xa4\x8bi\xbb\xdb]\xca\xd2\x8a\x08\xa7\x93\xb0\xec\x82\xe8\x11\xed\xd1\x9c\x18&amp;{i\x1a&gt;\xa2\xedP\x14p}^&gt;\x9bO\x1f&gt;d\xc6R\r\xc0\xcb\x05Y\xa6\xd02\rc\xad&gt;\xe8)\xa6\xe5\xa1J\xcc\xefY\xaf\xbd\xd9c\xb5\xbcx\xb5:\xbd\xbdz\xeb\x9d\xa9\xe1\x1f\x90t]\x9d\x9c\x9c\xc2i4\xa66\x877\xa7\xce_y\xfc\xe8\x9b:\x1f\x89\xf0\xec\x83\xb5\x17\x970\xe1.\'\xa0X\xb4."\x1e\x8f\xc2Z"\r\x8f\xc7\xa2}\x8b\xb4\xb2\xc4\xc3v\x14x5\xc4\xd7J\xfas-=\xe4sikwcf\x80`Rj!\x03\'\xaa\xe9tZ=X^\xd6\xc2\xcb\xd1Z\x80\xe7\xb3\xf1j\xc5\xd5\xdb\xdbc\xe9\xbe\xb3\xb7\xdal\xbe\xf7\xe0\xbb\xdf\xbe9\xbc99\xb9\x89COto\xde\xfc\xf1Oo\xdc\xbf\xb5z\xfb\xab|\x99\x8f\xf0\x12\xcfK8\xc0"\xaa\xa4\xcd\t}\xf7\xbf\x86\xe5\xa0\xbb\x18\xa6\xbd\x17a\xb6{\xc6\x0b\x83-\xfc\x8f(\xc0\x7f[\x90*\x049\xd2\xa7\x91W\x88\x89\xde\x0b\xaa\xda^\xd6\x10`\xa3\xc8\xb8&lt;\xef\xf6E\\=\xbd\xbd0\xc0\x8b\xc3\x97\xfd\xcd\xe6\xf4On\xfd\xf9\xf6\xfb7&gt;\xc4\xf9\xf9\xfb\xb7\xef\x7ftk{{z\xba\xb9}\xf7,h\xc0\xc5KV$\x1c\xbc\xf3\x89\x12\xdb\xc2\x10\xa5\xcd\x1f~\xaeO\x10\xfb\xe0E!\x96\xeb#*-\xcc\xd6_\x88"\xe45\xff\x9a~N\xef?&lt;\xdc%\xaa\x02\xa5(\xd90\x95\x14\x02\x8b\x91\xc9\xf2z\xb8h\xb6\xfc\x04\xd3[\x00\x00\x07LIDATk\xb34G\xad\xbbx\xde\xc2&amp;\x83{-\x9fL\xec5\x9b\xfdg:\xa7\xbf\x9f-\xb8\x9a\xa6\xd3\x9c~\xf4\x1d\x1dP\xf4mXHE}\t|?\xa5ng&lt;\x0e\xf1\xa3\xb1\xfa\x1c\x8c%\x12\x16\xe7\x0f\x86;\x97\x91\x1aH\xaf\xd8\x17\xce\xe7\xff\xdb\xdf\xec&lt;\\\xda\x82\xac\x8f\x8c\x0c\x00,S(\xa4M3\xa5\xa6\x19\x13\xfe\xb3\xae\xe5\x8d\xf5\xa1!\xb4&gt;\xbcn\xb5J\x12\x9cH3\x88\xbd\xe5\x17\xffZ=\xc6:b\xeb\x9fn~\xb4\xb3\xfd\xb7\xbbgQW\x81I\xb2\xb0&lt;\xe8\x03\xa0TfX\x94\x0cc~td\xb8\x89\xa2(8rvo\'\xe8i\x05\x86W\x14D\xef\xc4\x7fL\xf5\x14153332\xc3\xb8H\xac\xcc\xbcrD\x95)\x98Z\xd1T\x97k\xc2l\xc0\'\xd1\xdc\xab\xc5\xdaC`0\x9a\x05\x05X\xff\x99\xfe\xd7\xa9\xa6\x7f\xf9\xbb\xdc\xc6\xe3sT\xee\xe1\x95\x9d\xec\x0cip\xfb\x12R\xc2v\x84\x85\xac\xe3\xe8\xeb\x13\xe888\x87\x87|\xe8\x15\xed\x0e\x07\x8b7O\xf8\xe8I-\x922\x02\xfd\xde\x0c\x1dP\x11\x97\xac\x90\x17a)\x80\xa5\xda0\x96\xb1V[\x1b\r \xe7\xf2\xbc\xde\xd3K`l&lt;\xd8R\xfe\xeb\xbd\xbd\xd5~\xb6\x9f\xac\xff\x0c\xf3\xe2\xc5\x8f\xf9\xechgl\x12\xa6\xa2;\x98HD\xca\xa5l PN8YA\xe3\xe0bQ.(\x04\x05\xdaL\xc0\xa1\x93]\xd44\xaf\x18\x84\xf0\xe3F\xc2t\xec\x02\xf6?9\xdc\x85\xa9F\xc8\x83\xccV\xe4G\xc4|^\x01\x15\xb8\xd4T\xbb\x987\x0e\xd6\x84\xa1\x80\x8f\xd5t\xb8\xf1V\x9e\xbc\xd9\x99$-\x93\xc5\x8e\x0fE\xd6\x83s\xbc\xebh\xc6\x94w\xbb\xc9X&gt;\xb7\x1b\xc90Tr\x97\x9c~\xaa\x1d\xec\\,f\x17\x82\xf0\xa3\x00,\x01\xea\x10\x16\x1d\x0eA\xecPyI\xab\x9e?\xa4\xa0\xca\xc8)\xa6T\x85L\xe7\x00\x0b\x8e+\x10\x98l@ES\xebkku\x1f2.\x0f!B\xb1)!\x98u\x97\xf5hR\xf9\xd9\x1e\x15`G\\\x7f\xf9\xd3Y62\x0f[\xf1&gt;\x94\x0e\x91\x88\xcf].%\x91\x0b\xb3\xa1@\t\xe9\x90\x86\xc6\xb9\x18\xe9&lt;m\x97\xe0\x1cA\x01Jaw\xd8\x85&gt;P\xc1n\x1e\xc8B\x0b\x05\x0c.`A5\xa0\xb0\x8a\x91\x963D\x860\x07V:\x8dRHU\r\xd34\x805\x1b\xaaTf\xeb\xbe\xce\x05\xc3\xd7\xb4\xb2\x99@\x17\x1b\x86\x7f\xb1\xd1j\x82\x0co\xcd\xfb\xbf8k=\x1a`v\x83\n5D$B\xd5;a\xd9\xe2\xc9\xec\xa0\x03\x00v\x07\xb0h\x0f\x07au\xf4\xdeag\xb6"\xb5\xef\xfa\xd1\xd3C\x8a\xa7\x0c\xf3\x95\xa2\x98\xa6\x89\xa4\x03/\x0ed\xd2f\x1e0\xc0\x02[\xdb4\x0e\x96\xeb%\x7f\xb5\x02-E)\xe0c\xbb\rX\xf8\xe8z\xc7b\xe5?\xec\xd1\x06\xbc\xe9\xe9\x8b\x7f&lt;\xd9Y/ \xe9R\xc4G\xcd\x85\x0fTh/l\xf0\xa2\xedD\xbc\x1e\xb2qGkA\x82\x0c\xcbA\\\xc0\xb2\xdb\x8f\\\xe8\x11\xbb\x9e\x1c\xce\x0c\x8c0*\x96\x94\x15\x88G\xde\x80n\xa1\xd42\xf3\xe0RYV\xc4?\xd6g\x03\x83\xb1\xa1\xba\xb3:;\xcaK\xd4\xce@+a\xac\xe3\xc9x\x8bN\\\x10\xd2\xf7&gt;&gt;i\x85\xff\\\xe4[)\x81\x17\x9e\xe4#\x12\xa8\x92\xb0V d#\x85Ov\xe7Df.v\x13\x81e\x0f\x1e\xaf\xe5\x10\x99\xf2\x0b][\xbb\x14\xe4\x94a\xf0\xe5Q^\xd1\xaa\xb6"\xfd\xa8AM+E\xad\xa8\xd0\xe7e\xa3h\x1e\x0c\x05\xe2Q\xaeF\xe6\xaa\xa32G C\xb8y\x1a\xeed\xe3\xc0\x80\xb0\x96\x9f-\xed\xbez\xf4\x8f7\xd9H55\x13&gt;\xa4j\xdeeE\xb3\x93\xa5\xbd\x1e\xb6P i\xf3G\xfd\xf1h2\x9b\x13Pkq\x1d/:\xd8\xcc=\xc3"\xf7\x92\x98um\xc1\x81\x88+TzF\n\x7f\x10\\J\x9e\xf4\x16\xfeS\xf2P\xab\x14\xea\x08\xd5(\xb6k!\xc7P\xb5f\xaf\xd6\xeb\xd4.\xea\xc8+nd\xbb\x08\x03\xd3;\xa3\xa7\xe8m\x9c\x8b\x07\xbf\xb2X\x91\x98za+\xb7\xab\xb7\xc7\x85\x08\xb4H%\x86\x95\xec`U\xe9\xf9Vr\x906\xce\x1cK\xc41V\x90\xe2\x8c,\xd6\xb5\x0b\x9dBb&amp;C\xa5\x18\x15\xece\x12\x96\xa9\x18fQ\xcbSy\x83\x1ec\xbd\x92\xf3\xd4\xe2\x9c\xbd6[\xf1\xc7hC\x05\xb0x\xea\x1c"d\x11f4\xf4\\\x12\x05\x12\xc9\xb9\xee\xd2#&lt;\xdb\xbf`\xc1+\x13\xd9\x10\xc3\x82\x0f\xe9\xc9i\xd4\xcf\xc5fC\xddt!\xa9\xb8\xa1\xa0\xb2\x1f;\x11j\x01,\xa1k\xe3\x1eK8\x94\x08\xe1D@\xa5\x0c\n|\xdc\xc8\x14\xcc\x15.R\xb7$\x9b\xcbUTE\xc0\xaa\x91\x17\xb9j\xbd\x12@\xdcS\xce\xd6\xc9`$\x18&lt;\xcdwg\x97\x7f\x8d\x12\xc6BE\x03\x80t$C@Y\x8e\xa9\x92Y\xb4\xd2\'(\x1f")V\x93\xd98\x99\x86E\x15|\xf7\x1a\x16\xc2\xadk\x83$\xf4\x88\xecu\xa3\xd1\x054\x90s\xa8\x8e0j\xf1\xe0\x9a\xa01\xac\xa1z|\x08\x9e\x84\xbd`\x94\x08%`\xc6\xc5\xa8z&gt;\x11\t\x0b\xe1\xafS\xca\x81\xbe\xe3b\x94\xdd(N\x93\xc9\x8a\xad\x82{hs\xc6iyJ.\x16\x85\xc9\x03\xdd\'\xd8~\t\xd1#\xd0_\xb4^\xa5s+\x81\x85p\'9\xa0C"\xca\xc8\x88\x0b\xde\x04\x16rz^9\x18\x1a\\\xcc\xd7\xfa4\xe6\xc4\xda,\x82\xabN\x8f+\x99#\xc9e\xf4\x90\x81\x1c\xa7[%\xab\xee\x02\x16DC\xe2\xdd\xc8\xcc\t\x1f\xf5\xf8h\xf2\x93\xec"\x86\xa8\x8a\x8f\xc3\\1\xda\xeb\x12\x9bM\x96l\xa4\xf0t\xf5\x88\x85\x05\x16\xc7\x11a\x97\x9cf\xf9\x18\xe2NI\x07Xi2\x98\x02\xcd\xa2\xe8\xa7\xd5df\x8d\xf3j\xeb\x0e\xefr\xad\xca\td\xae*,F\xcf\x94\xdc\xc4\x15\x08\xb1p"\xc9\x8c\x10\xa5\xcbB\x85\x1f\x0cH\x15\x16\xcb\x06\xeer\x19\x9fO\xf8"\xd4\xe5\xd3\xfe\x98\x10\xb1Ei\xf3S=\x94\xccy;e\x03\xc3".\xa4 X\x8bI;ee*\xae\n\x19\x99\xa0Ri\xe2\xfaw\x0fg\x93\xdb \x0cDa\x04j%(("\xe0\x04\x85\xc2$\x8a\xa2.\x08\x11\xac*\xd6V7\xd9#\xf9B\x9c\x85+\xc0!r\xa7\xbe7Iky\r\x1fo~\xfc\x86\x85o\xec\xad\x8f.I\xf6\xb7\xee2\x87\x07\xe4U^\x81\x87\xf3\xbb#\x8c\xbe\x1f\x93\xa0\x8e\x82*ZF\t\x95\x86\x1b\x18\xef_;u\xa5E\xc1n\xdf\x9f\xe0kD\x06\x89\xa1^\x8c\x82\xf4\xf1\xb4\xfc\x83X\xc9?\x16C\x19z\x9c\xcf0;bH\xd3\xe2\xd3\xae\xae\\\x0f\xf8\xbeu\xb1\x12u\xe7\xf3:/w[ \n\xc8\x91\x01{\x1c\\aT\t\xc5r\x80b\xd80}\x992\xd0\xd2\xa4\x89\xdd\x1c3\xbd|\x07\xf6\xcfpj5\x85\xc0\x95V0\xcc~m\x85\xa3\x86L\xe0j\xe2\x88\x86\x90\xfd\xb5\xd5\xecB}zj\xa3\xff\x163\x1c9E\xbd\xd0L\xbb\xd5\x8f\xfd\x03\xa8\x7f\x040b\'\xe1?\xf0\x11\x9f&lt;\x8d\xce(\x16\x14yJ\x85l\xda\x01\xd1\xb9,P\xab\xcc\xb0f\xbd\xe9!_\xc0\xd1\x07\xe7\x0e\xba\x16\xb1\xd0\xe5Q\x89V\xed|dE\xc6\xa1\xc1)\x99\xa4\xd0\xaaj_I\xef{[\xb5\x84\xe9k\x81\xeb\xfa\xa9\xa73\xce\xe7Y\xbe\xb7\x974\xaak\x91:\xf4\x97\xfb\x94\xd7\xd3\x08\xc0\x98\xcfr\x06\xa6\x05\xa5X\xc2\xe1m\xd8"@\xd887\x94T-\x83\xeb\x03\x95\x86\xae\x0c\x8eLzj\xfd\x96\xab\x8d\x07\x16\xaf\xa2\xca\x9fXX\xa7\xbe\xc9\xf7\xa0\x92V/\xa3A4\x7f\x01\xec\x99B\xab\xa2\x16\xd8\xac\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +518,14 @@
           <t>Pedro Caixinha</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x98zTXtRaw profile type xmp\x00\x00H\x89\x95VI\x92\xa40\x0c\xbc\xeb\x15\xfd\x04[\xb2%\xf3\x1c\x82\xe56\x11s\x9c\xe7w\xcaP@\xb1O\x11\x982hI\xa5S\x06\xfa\xf7\xe7/\xfd\xe0\x17Y\x98\xa4\xb3"\xad\x15\xed-h\xaf\xd9\x92F\x0e&gt;\xd7N\x07\x13\x7f&amp;=\x9bFM:*k\x96v\xba\xbfX\x8fl2Ph9|\x1f\x08\xcdpRi3\xa7\x94t\x17vz\xe6\xa1\x8b%\x1cAZ\x84\x1a\xc9\xea\x8f\x07\x83\x15\x0f:\xc2\xd0x\x94(\x8d\x1f\xf8\x17\x841\x02&lt;\xf7S\x10\\\xc5\x1a\x84\x05\x1a+\xdc{\x02\x16rX\xa1\xbd\xc3\x05P\xd9D\x05\xf3\xc6\x02\xdc\x1b\x948\x00\xe7\xfc\x1cE\xb3\x02\x11\xeat\xa0l\xc7`\xdb\x92\xe0$\xc7\x82\x108#`\xc7\x03}\x8aqC\x8c\x19\x8e\xd9it\xe8\x80\x8c"y\x90\x99\xd03\xdc5Ak\x89\x007\xb9\xf3\xb9\xd9R^\xd4\x0e\xc8ol\x08\xa0;m&gt;e\xd4Y\xd4A\xcd\xcb\xa8T\x82!U\xd0\x9a=\x94\xe3J\xb9\xdap\xad%\xc2\xc5p\nJ\xe3\xe0\xc6\x18\x15\x8f\xa0\x15\x14\x14\xb8G.\xc6\xdau&lt;.\xa4"\xe19&amp;\xb7\xa1g\xe8\x13\x7f\xce\xc3\x1d\r\xb4\xcdy\xbe\xd0\xef\xe4AO\xfax+\x0fJ\xb1\xea\x02\xc1\x94\x8f:\xa9\xaa\x1dtc\xe3\x81\xe7\x94\x83\n\xae=\xac\xd0\x87\xb4h%\\k\xe5+\x99\xf3\t\x85\xed-i\xd7\xa6\x82z\xe3\xbd\xa6f\xb9\xcc3\xec\x19\x11u\x83\xa3\x9c\x93\x81#\xac\x05\n\xcb\\\xe9\x1e\xab\xf0\x11\xf4%F\xf1\xe5\xcf\xce\x00F,&gt;\x94\xe3\xea\x11\xeeqm0F\x11_\xd5\xa3\xdb\xd6kJD\xb7\x99\xb2\x81\xfa\xd4\xd4$\x11)\xb2$\x9c\x8a\x13\x92\x15\xe8ZJM\x88\xbb4\xe7.\xc8]\xf7\x1a&lt;\x8c\x82\xbaa\x96\x04&gt;\xf8g\xd2\x80\x8d#\xb2M\x9a\xd0\xd2c\xfd\x88&gt;c\xca\x15\x13WD\r\xd2%\xa9I0+2)\xfb\xca\xf5\x99\xe6\xec\xbd\x99\x81\xbb\xd0\xb2fN\xf5!\xe8j\xb8\xda\x9d\xf7#\xbd\xeb\xedg\x95\xd1\xa1\xb0S\xdd\xeeC\x1e\xdb\x9b\xde\xf7\xf7}{\xd3\xfb\xfe\xb6p\xfeF\x9b\x1a\x9b\xd67\xe8\xda\xcd\x93\xcb\xdc\xccr\xdd\xccsh\xd0a\x99\x00\xb4\xf8\xee\x8b\xbd\xb8\xd5\xd1w_\xdf|Sc\xada^y\xd9\x98\xaf\xd6\xfb\xc0\xf4D\xe2[\x0e\xe9\xf9\x1d\xfa\x8eC\xfa|\x89\\\xef\x8e\'\x1c\x16\xf4~\xf8\xde\x10\xcf\xbfF\xa6\xd0\xdb\r\x03\xc5\xbb\xcaqt`S\xfc\xddgx\xdbUZ\xaa5]\x9b\xff\x9f$i\xa5\xf3\xb69\xea\x97\xd2\xa5\x15&gt;\xd5\xe8\xfb[\r\xb5\xfe\x02\xe0E8X\x0c\xb3\xb13\x00\x00t\x8dIDATx\xda\xec\xfdg\xb0\xa5\xdby\xdf\x89\xfdV|\xd3\x0e\'w\xba9\x01\x179\x93`\x94\x08J\xa4\x86CQ\x1cJ\x94D\xc2\x9a\x91\xa8\x11\xc5\x91\xe4r\xd9.W\xf9\x83kP\x1e\xbbfj\xca#{lidA\x89b\x10\x03D\x00\x04\t\x12\x04\x01\x82\x04\x91\x89\x9cq\xf3\xed\xdb\xb9O\xdc\xe9\r+\xf9\xc3\xda\xdd -\xceH"\xa5\xe9\xd3$W\xd5\xad\xdbu\xba\xfa\x9c}\xf6\xfb\xec\xb5\x9e\xf5\x7f\xfeA\xa4\x94\x12\x7f\xb2n\xaf\x94\x12B\x88\xdb\x7f\xfe\xdd\xeb\xdf\xf6\xf5?Y__\xfaN\xbf\x80\xd3\xb0r\xa1$R\x02\xe7\x1d!\x04\xfa\xae\xa3\xef;\xac\xb5\xc4\x18)\x8a\x02)\x15B\x08\x94R(\x95\xdf:!\x04R\xca\x7f\xe3{\xfeq/\xb6?\x96\x85ukW\xba\xb5\xf3,\x17s\xf6\x0fnr\xe5\xeae&gt;\xf2\xb1\x0fr\xf5\xc6\x15\x0e\x0e\x0f\xe8\xbb\x15uS1\x1a7lL\xb7\x98\xcd\x168\xe7\xb8\xe7\xfc\xbd\xdc\x7f\xef\x83H)\x99\x8c\xa7lo\xed\xa2\xb5f{k\x87\xe9t\x83\xf1x\xfao\x14\xdb\xef\xde\xed\xfe8\x14\x9d\xf8\xe3v\x14\xa6\x18\x19\x9c\xe3\xe0\xe0&amp;W\xaf_\xe5\x03\x1f\xfcu\xbe\xf2\xb5/\xe0\xbdCi\xc5l&gt;g1_\xe0\xbd\xe7\xdc\xd93\xd4M\xc3\xf5k7\x19O&amp;h\xad\xb9q\xf3:\x85\xd5L\xa7\x1b\x0c}\x8f\x90\x92\xe8#1&amp;\xac)\xd9\xdb\xdb\xe3u\xaf~-\x0f&gt;\xf80Ji\x0eO\x0e\xb8\xe7\xfc}\xdcw\xe1A\xca\xb2BJ\x85\x94\xf2\x8f|\x81\xfd\xb1(\xac\x94\x12)%\xba\xae\xe3\x93\x9f\xfa8\x1f\xfc\xf0\x07\xf8\xcc\x17?\xc5\x8d\x9b7\x98n\x8e\xa9\xea\x9a\xbe\xedh\xea\x9a\x8d\xc9&amp;\xcb\xc5\n\xd7\xf7llm\xb0\xb9\xb9\xc5\xf5k\xfb\x1c\x1f\xcf(\xea\x82\xa1\xeb\x902Q\x15%\x07\x87\x87 \x04\xce9f\xb39\xde\x05\x8a\xc2r\xfe\xc2Y6\xb6F\x9c\xbfp\x96\x83\xa3CLQ\xf2\xd0\xf9\x87y\xc9#\xaf@(\xc1\xd93\x17\xd8\xdd9\xc3d\xb2\x811&amp;?\x88?bE\xf6G\xba\xb0n\xfdj]\xd7\xf1\xe1\x8f\xfc\x16o\xff\xa5\x7f\xcd\xe7\xbf\xf8Y\xbc\x1f(\xab\x12i\x15}\xdf\xf3\xf0C\x8f2\xf4=7\xae_gc&lt;\xa5[\xb5\x0c\xfd\x80\x90\x92\xaan\x98N\'\xdcs\xef\xfd\xcc\x97\x0b\x9e\x7f\xe6Y\xae\\~\x9e\xed\xedm\x9af\xc4\xcd\x9b\x87\x18k\xe9\xda\x9e\xd9|\xc9#\x8f&lt;\xc4\xc1\xe1M\x9c\xeb9{\xee,/}\xf9\xe3\x14\x85\x85\x04\xcb\xf9\x82\xc3\xe3\x03\x1ez\xf0a\x9ar\xcc\xf9s\x17\xf8\xf6o\xf9\xb3lo\xed\xa1\x94\xba\xd3o\xd7\x7f\xd0\xf5G\xb6\xc7J)\xe1\xbd\xe7\xf9\x8b\xcf\xf2\xd3?\xfb\xe3|\xe0C\xbfA\xdb\xb5\x10@+\x89\x00\xce\x9f9\xcb\x8d\xfd\x03\xbe\xf0\x85/\xa2\x94fww\x87n\x18X\xadZ\x16\xb3\x05\xe3\x8d).Dla\x11"\xb1\x9c\xcf\xb1Z\xb2\xbd\xb5E\xdf\r\xec\xee\xd4lL\x03m\xdb!\x91D\x17X\xcc\x96\xf4\xab\x81\x88\xe0\xe4h\xc5\xd7\xbe\xf24)8^\xfa\xf8\xe3\xf8\xc11\xaaG\x1c\x1d\x1f\xd1\x95+\x8ef\xfb&lt;\x7f\xe9\x19^\xf5\xf2\xd7\xf1\xfaW\x7f3\xe3\xf1\xc6\xef{\x11\xb8\x1b\xd7\x1f\xb9\x1d\xeb\xd6\xaf\xb3\xbf\x7f\x93_\xfd\xf5_\xe6\x1d\xefz\x1b7\xf6\xaf\xa1\x94!\t\xc1\xb0\xea\x99\xcf\x8fi\x9a\x9a\xa2\xb0,\xdb\x16e\n66\xb7\xd8\xda\xdc\xe0\xcc\xd93\xdc\xd8\xbf\xc9\x17?\xff%D\x92&lt;\xf2\xf0#,N\x8e\xd8\xdc\xd8\xa0o[\xba\xae\xa5(-\xb3\xd9\x02!$]\xdb\x03\x02!4\xabe\xc7\xde\x99]\xba\xa1e\xe8\x1d!8F\xe31F\t\xa6\x93\x86\xba\xae\x08\x04\xca\xaa`ow\x0f\xad\r\x8bv\x81)4\x0f\xdd\xff\x10\xdf\xfa\x8d\xdf\xc9K^\xfc\x9a?\x12\xc7\xe2\x1f\xb9\xc2\n\xde\xf3\xa1\x8f~\x90\x7f\xfe\x13\xff\x98\'\x9fy\x8a\xed\xedm\xb4\x12\x84\x18\xc9\xbf\xa9`&gt;;f\xd5.\x99LF\xec\xec\xee\xb2\xbf\x7fD\xbb\xea\x99nnP\xd4%\x11\xd8\xdd\xde\xe13\x9f\xf8$\xa5.\xd8\xdd\xde\xe6\xf0\xe0\x80\xad\xadM\x9cs\x94u\x85s\x03\x87\x87\xc7\xb4\xab\x96\xf9|\x85\x94\x86Q3\xa6\x1e\xd5\x98\xca\xb0\xb91\xe5\xf9g\x9e\xe3\xe4\xf8\x88\x9d\xed-\xa4\x84\x0b\x17\xceq||\xc0h2\xe6\xd1G\x1fa&lt;\x9e\x10\x05\x08\t\xabv\xc9\xf6\xe6\x0e\xdf\xf5\x1d\xdf\xcf\xe3/z\x05R\xca\xbb\xba\xc0\xfeH\x14\xd6\xad\xe6\xfc\xc6\xcd\xeb\xfc\xc2;\x7f\x8e\x9f\x7f\xc7\xcfqp\xb0OaK66\xa6\x9c;\x7f\x9e\xba\xaa\xb8~\xfd\x1a\x08\x81\xd6\x82\xfd\xfdC\x04\x12\xa5\x14u]\xb3\\-\x99\x9d\x9c\xa0\xb4bwo\x87\xbd\xed]V\xf3%O?\xf94g\xce\x9c\xe3\x95\xafx\x05\xbf\xf3\xa9O\xb0Z\xae\x08)\x11|D*(\xcb\x82\xa1\x0f&lt;\x7f\xf12Z\x1a\x1e~\xe4!\xb6\xf6\xb6\x98\xcf\x8e9&lt;8\xa4[\xadH1R\xd7%\xafx\xc5K\x10"p2;a4j\x18\x8f&amp;D$\xf7\xdcs?\xb64\xc4\x08E=\xe2\xb5/\xffF^\xff\x9ao@)u\xd7\x16\xd7]\xdfc\xa5\x94H$\xbe\xfa\xc4\x97\xf9\xef\xfe\xfe\xff\x8d\xcf|\xf13\xa4\x08\x83\x8fL&amp;5GG3n\xde&lt;\xc09\x8f-\x0b666\x18\x8fj6\xa7[\xf4\xed\x80\x96\x9av\xd9\xa2\x94\xa6(*\xce\x9e\xdd#\xc5\xc0\xfe\xf5\xeb,\xe6K666H)\xd2;\x87T\x9a\xae\x1f\xd0\xda\xac\x9b{\xf0. \xd1l\x8c\xa7\xcc\xe6K\xae^\xb9\x8a\xb5\x8a\xb2*\x18O\xc6\x14\x85\xe5\xf8\xe0\x88\xb6\x1d8&lt;&lt;\xe2U\xaf~\t\xbb\xfd\x0e\xd6\x1a\xe6\xb3%E\xd1p\xf9\xf2U\x1ex\xe0A\x0e\x0f\xf69s\xbe\xe6\x03\x1f\xfeubt|\xe3\xeb\xbe\x05\xa5\xef\xceG\xa4\xde\xf2\x96\xb7\xbc\xe5N\xbf\x88?\xe8J)\xd1\xf5\x1d\x1f\xf8\xe0\xfb\xf8\xbf\xfe\xf7o\xe1+_\xfb\nM\xd3P75\xe3\xf1\x84\xa6\x1c\x11c"!X.W,\x97-\xcbE\x0b1Q\xd9\x92\xed\xad-\xb4\x92t}\xcf\xd5\xeb70Rr\xef\xbd\xf7`\xada1[0\x9f-\xb8q}\x1f\x1f\x02\x17_x\x81\xb2(X.[\xac\xa9\x90B\xa0\xb5\xa2\xaaJ\xca\xb2dww\x17D\x06[\x95\x12X\xab\xd8\xd9\xde"\x85\xc0\xb9\xb3\xe799\x9e1\x99\x8ch\x1a\xcbh4b\x7f\x7f\x1fk\r\x93i\xcd\xfd\xf7\xdd\xc3l1c\xef\xecY\x92\x90,\xe6\'|\xe8\xb7?@\xdb\xce\xb8p\xfe~\xca\xb2\xba\xebv\xae\xbb\xf3\xe3@.\xaa\xd5j\xc5O\xfd\xec\x8f\xf3\x93?\xff\x13\xb4}GUW4\xcd\x08\x81\xe0\xca\xe5\xab\xf4\xdd@S\x8f\xa8\xea\x9af4bp\x8e\xcaZN\x8eg\xdc\xb8z\x83\xc9d\xc4\xd6\xf66\t \xc2\xd0\x0f&lt;\xf5\xe4\xd3\x10\x03\xc1\x07\x86\xc1#\x84\xe2\xe8\xf0\x90\xa2*\x112\xb1\xb9\xb1\xc1\xc1\xc1\x11\x85-\x08&gt;@\x01\xde\xb74\xe3\tox\xf0\x15|\xea\x93\x9f\xa6\xefWlN\xef\xa5\xaa\x0bB\x9c`L\xc9ds\xc2\xc9l\xc6\x95\xab\x05`x\xfa\xe9\x8b\x90\xe0\xb1\x17=LQV\xd4\xa3\x9a\xb6o\x19\xd5#FM\xc5\xc9\xe2\x84_x\xd7\xdb@j\xfe\xd2\xf7\xbf\x19\xa5$p\xf7\x14\xd7]\xb9c\xa5\x94h\xdb\x15\xff\xef\x7f\xfc\xf7\xf9\xb9\xb7\xff\x0c\'G\'\xc4\x00\xd3\x8d-\x88\xe0\x06\xcfx&lt;E+K\xdf;\x10\x82\xa3\xa3cR\n\x9c=\xb3\xc7\xa8j\xe8\xdb&gt;\xcf\xfeH\x18\xadY\xae\x11w\xe7&lt;{{g\xb8yc\x9f\xb6\xed0\xc6\xa0\xadF)\x8d\x96\x82\x9d\x9dm\x96\xcb\x15\x9b[[Xkh\xbb%\xca\xc8\xdb;WU\xd6\\\xbfq\x83s\xe7\xce\xe1\x87\x81\xc1\x07\xae\\\xbd\x8e\xd6\x92\xd5b\x81\x1b\x1cGGGt\xab\x81\xeb\xd7\xf79&lt;\x9c\xb1\\\xf6\x14EEY\x95\\\xbf~\x95\xd9\xec\x84\x10"\'\xf3\x19\xd7\xae]\xe55\xaf|=\xd3\xc9\xc6]\xb5k\xddu;\xd6\xad\xa2\xfa\x17?\xf5O\xf9\x85w\xbe\x8d\xd9\xf1\x9c\xa1w$)Y-\xfb\xdb\xe3\x92\xb2(\xf1\xc3@\x0c\t\xa1\r\xf7\x9d\xbf\x87\xb6]Q\x17\r\x8bn\x86\xd5\n\xef\x07\xba61\x9b\x9d\xe0}D\x00\xf3\xe3\x13&gt;w\xf0Y\xac-(\xca\x92\xf1x\x8c\xa9,R\x086\xa7c\xe6\x8b\x05\xd3\x8d1\xd7\xae_\xe5U\xaf|9\xabn\xca\xb5\x1bW\x88\x11.&gt;\x7f\x89\xc5lI\xbb\x1c\xb8\xf4\xc2Ubr(m\x88\x83\xe7\xe0x\x81\x1fz\xbcs\x08\xa1\xd8\xda\xdab&gt;[\xd1\xb7\x1e\x92\xe0\xf8d\xc6\xeb\xbf\xe1\r\x1c\xdc8d\xb9X\xe0\x82\xe7p\xff\x88\xebWo\xf2\x8ew\xfe&lt;\x7f\xe7\xc7\xfe\xf7h\xad\xef\x9a\xe2\xba\xab\n\xeb\x16\xe8\xf9\x0b\xefz\x1b?\xf3\x0b\xff\x8a\xd5bES\x8eh*\xc9\xaak\xe9W=Rk\xea\xa6!\xa5\x84\x92\x06A\xe0`\xff\x80\xfd\x9b\xfb@bq2\xa3,J\xac\xd64e\xc3b\xb1\xa0k;b\x04%%\xc6\x94\x14\x85 x\x8fR\n[\x14TuM\x8a\x81\x10#\x1b\x1b\x9b\xec\xdf\xdc\'\xa5\xc4\x97\xbe\xfc%\xee\x7f\xf0\x01|\x84\x8b/\\\x81\x00\x8b\xf9\x8a\xbe\x1b\xb8t\xe9\xca\xba\x07\xab\x19\xdc@\xd7\xb6ll\x8c\xb9v\xed\x1a\xd3\xc9\x063\xb5@\nA\xdb\xad\xd8\xdf\xdfg\xb6\x98A\xfa8UU\x11\x82\xe7\xda\xcd\x9b,\x16K\x9a\xa6\xe6\x93\x9f\xfe\x04\'\'\xc7loos\xb7\x1c\x87w\r\xdc\x90H\xc4\x10\xf9\x95\xf7\xfe\x12\xff\xe0\x9f\xfd\x7f\xb8v\xe5\x1a\x8b\xa3%\xce9\x94\xd0\xf4\xc3@p\x1e\x81\xc0\x18\x8bs\x8e@@[\x83\x00RH\xa4\x14\x90RP\x975\xbe\x1f\x08)\x82X3\x0e\xa4\xa4(\n\xac\xb5\x88\x04V\x1bV\xdd\x82\x10\x02\xe3\xc9\x06\x89\x84-\x14\x1b\x1bS\xae\\\xbe\x8es\x03\xcb\xe5\x1cS\x14\xd4\xcd\x98\xc5l\x81\xd5\x16\xa34\xab\xb6e1\x9fc\xadE\x1bC\x88\x8e\x18\x03\x93\xf1\x98\xa3\xa3#\x8a\xa2\xa4\x19\x15\xc4\x18Y\xad\x16L\xa7\x1b\xf8\x10\x18\x8dF\xec\xee\xed\x92R\xe2\xe2\xa5\x170\xa6\xe0\x91G\x1f\xa6\xef;\xde\xf8\xfao\xe6\xaf\xff\xb5\xbf\xc5\xf9\xf3\xf7\xde\x15\xbb\xd6\xddSX)q\xe9\xf2E\xfe\xde\xff\xe9\xc7x\xe1\xf2ef\x07s\xdae\x87\x12\x12k\x0b"\x89\x14#~\xf08\xe7\t! $$\x91\x08!\x02\xa0\x84\xa0\xaeJ\xca"\x03\x9c\x83w\x008\xe7\x881\xd2\xd45\xa3Q\x83@\x92bb\xb9Z\xd2\xaeV$\xa0\xaaj\x90\x91\xd1h\xc4r\xb1\xc4\xf9\x81\xc2X\x16m\x0b\x08\x94\xd0\xc4\x10\xb0\xc6\x80\x88\x0c\xfd\x80\x14\x12!$U\xd3\xd0\xf7-\xc1{b\xf0(-\xb0\x85E\x1bEU\x15\xbc\xece/\xe3K_\xfe*m\xd73\x99\x8e\x89&gt;px|BJ\x82\xed\x9d\r\xea\xbaF\x1b\xc5C\x0f&lt;\xcc\xff\xf1\x7f\xf7\x7f\xe6E\x8f\xbd\xf4\xd4\x8f~N\xf7\xab[\xaf[\xb0\xc2\xcf\xbc\xfd\xa7\xb9r\xfdr&gt;\xb2t\x81\x92\xf9$\xd7\xd6\xac\x89x\x12c\r[[\x1b\xdc{\xdf\x05\xce\x9f?\xc7\xb9\xbd\xb3\x94\x85\xcdg~\x88\xb8v`\xb5Z\x11\x13\x90\x04R*\x8c-\xa8\xcb\x86\x94`v2\xa7]\xad8&gt;:\xa2\xef;\x84T\x0c\x83\xa3\xebZ\xbc\xf3\xccg\x0b\x8c\xb6\x0c\xbd\xcfT\x19mI1!E\x82\x14\x89~@\x84\xc0\xb8*\xa8\xac\xc6\x1aE\n\x0e\xab5\x85\xb5\x94\x85A\x0b\x99\x1b\xfbn \xc5\xc4\xfe\xfe!\xdb;\xdb4ME\xdfv\xccNfD\x1f\xb1\xda\xb01\xd9`\xe8z\xf6v\xf7x\xfa\xd9\'\xf9o\xfe\xdb\xff\x0b\x97/_\xe4\xb4\xef\x07wM\x8f\xf5\xd4\xd3_\xe3c\x9f\xfa0EQbT\xc1\xec`\x851\x86\xbe\xefh\xdb\x96\x94\x12\xae\x1f2\x0c\xb1\\\xb2\xbd\xbd\xc5\xc6\xe6\x94\x9d\x9d-\xca\xca\xf2\xc2\xf3\x97\x18\xc2\xc00\x0cD\xd7\x93\x84D+\x85R\x12!\x15\x89HU\x15\xa4\x10\xb1\xc6"\x10\xb4}\x8b\xf7\x01\xad\x15\xde\x05RL$\x9d\x10\x80Q\x9a\xbe\xef\xd0\xda \x85\xc0\x1a\x8bU\x92\x94\x02\x82\x88\xd5\x12\xad\x15H\x882QX\x8bV\x9a\xe8\x03\xce\x05\x946$@\x1a\xc1\xf3\x17\x9f\xc3\xe8\x82\xba\x1e\xd3\xae\x0e\x99LF\xd8\xb2D\x08M\x88\x91\xdd3{\xbc\xe4\xa5/e&lt;\x19\xb1X\xcd\xf8\xc5_}\x1b\x7f\xf3\xaf\xfd]\x8a\xa2&lt;\xb5\xc7\xe2]QX)%&gt;\xf6\xc9\x8fr2\x9b\xa3\x94\xc1\xb9\x80\xb6\n\x11\x13F7\xac\xda\x96~\xc8E#\x11\x18\xa3ID\xac5\xbc\xf0\xc2E\xae]\xbb\x89\x0f\x01\x80\xb0\xee\xd5\x84\x00\x1f#\xc1\x0b\x10"C\x0eK\x8f\x00\xa4\x94h\xad)(\x08a\x95\x0b$%\x94H\x18#\x102PV\n%\x14eU\x92\x00\xab\x15\xd6\x8e\x88q \xc6!\x1f\xb9\xd6P\x15%\x85\xd6\x18\xad\x881\x80\x0b$\xad\x88J\xa2\x85\xc1\xd45\x97._g\xbe\xea\x99N\'\xbc\xfc\x15\x8fr\xe1\xde\x0bl\xef\xec\xf1\xc1\xdf\xfa \xcdx\xcc\x99\xb3g1Va\xada\xaa\xc7|\xf5\x89/\xf0\xe9\xcf}\x9c7\xbe\xe1\xdb\xef\xf4\xa3\xf9\x9f]\xa7\xbe\xb0R\xcap\xc0\xc7&gt;\xf5QV\xab\x8e\xe5\xbc%\xc6D3np\xa2g1_\xe4\xde\xc5y$\x82D"\x84\xc0\xe1\xc1\x117o\xee#\x84D\n\x895\x05QzRJ\xc4\xe8\xf37\x17\xb7\xe6\x8c\x10c$\xa5\x84\x14\x82\xe5r\x81\xb5\x16\xa9\rM3"\x06O\x88=\xa5UT\x95Eh\xc1\xb8\xa9Q$F\xe3\n[\x18\xcaBSZ\x93\x8f\xbd\x026G#J!\x18\xd5\x15a\xe8\x89\xeb\x9e\x8f\x00\xad\xf3$%\xb0\xa6d\xd5%\xdc\x89\xa6)@7\x82+W/1\xf8\x81\xfd\xfdCRL\x9c\xdf;\x83\x96\x92IS\xb3\xbb\xb3\xcd\xa5+/\xb0\xb9\xb9\xc1{\xde\xff.\x1e}\xf8qv\xb6\xf7N\xe5\xaeu\x17\x14V\xe4kO~\x85K/\\"\xb8D\xd7\x0e\x84\x94\xe8\xbb\x0e\x1b%\xce;\xbc\xf3\x90\x80\x08R\x80$!\x05\x98\xb2\xa4\xaaJ\x9a\xa6\xc1j\xcd\xfc\xf8\x84\xa1k)\xacEd\xbc\x1dA.*)5\xde;\xa4\x94(-\x91R\xe7#\xcf\x18\xea\xa6\xc6\xb9\x16c%M]R\x15\x96\xf1\xa8\xc6\x1a\xc9\x99\xbdm\xce\xec\x8e\xd1jEa$Fj\xb4*\xd0\x08\x18\x1c$\x90b\x8c\x10\xe0\xfa\x01\x97\x04Ih\x86\xe8\x89\x11\xae^;b\xc3*\xf0\x0ei\xa1\x99\xec\xf0\xdc\xb3\x17\x91\xca\xb0\xb5\xb5\x8d\xb6\x1am\x14\xa6\xb4(\xab\xe9\xba\x8e\xeb\xd7oR\x95%\x1f\xfc\xd0{\xf9\x9e\xef\xfe\x01\x8a\xe2\xf4\x8d|Nua\xa5\x94\xe8\xfb\x9ew\xbd\xfb\x1d\xdc&lt;&lt; &amp;EH\x11\x1f\x02\xc1\xf5 \xd7\x8d3\x82$\x04BD\xb4\xd6h\x95\xd0\x1a\x94\x95\x14\x85F\nG\xb7&lt;\xa1.$\x9b\xa3\x8a\xda\x08\xac\xce\xf0\x82$!%H\xa9\x08!\xa0\x94"\xa5\xc4\xa8\xa9\x91\n\xa4\x88\x14\xa5E\xa9m\x86\xbe\xc7\x08\xc5hT3\xaaK66\xc7L7\xc6\x94\x16d\x12\xe8\x18\x11hRZsa\xb4%z\x871\x9a\xc19\xea\xb2BX\x8d\xb2\x05!%b\x80\x14\x15xI\xb3j\xd9\xefz\x9ez\xfa\x19|\x10\xf8\xae\xe7\xa1\x07\x1f\xa2j*\x86\xa1#\xa6\xc0\xb9\xb3gY\xcc\x17\xdc\xbcy\x93\xfb\xef\x7f\x80\xe3\xc5\x017\xf7\xafs\xcf\x85\x07\xee\xf4\xa3\xfa7\xd6\xa9.,\x80\x83\xc3\x03&gt;\xfa\xa9\x8f\x13b\xa4\xae\x1b\xa4\x80\x10&lt;\xd1\x97\xa8 X\xf89QKDH\xa0\x15Z\x82\x92P\x18\xc3h\xdc c$\xb6K6\n\xc9\xa8))\xac\xa6,\x04M\xa1)\x8c\xa1P\n\xa5\x15R\t a\xadF\xc8u\xe1\x95\x06I\xa40\x06\x992\x80:\x195H\rIBUV\xb8\xd0\xd1\xafz*)\x89}\x00=\x80P\x90\x04\xc1G\x94\x00\x17\x03BJ\xac-QUA@ C$\xa6\xc8\xf9\xdd\x1d\xa6\xcd\x88\xe3\xf9M\xfc\x0b7\x98\x9cXNf-!\x04\xac\x81\xb6[2\x9a\x8c9&lt;:bq\xb2@ \xd9\xdc\xd8\xa6\xaa\x1b\x9c\xf7&lt;\xfb\xdc\x13\\8\x7f\x1fB\x9c\xaeY\xe2\xa9/\xac\xcf|\xee\xd3\\\xb9~\x85\x9d\xdd=&amp;\xa3)\xf3yn\xb4\xa3s\xac\x16+&amp;\x8c\xe8tG\xf2\x11!\x13B\x80QPY\x83\xf4\x03\x95\x96\x8c\xa6%Mm1\x85\xa1nJj\x0bU\xa1\xa9\xab\x02\x9b@K\x81\x94\xa0\x8cB\nPF\xa3\x8d\xc1\x96\x15Z+\n)1H\xaa\xa2DH\xe8\x93\x07\x91\xa7\x00:\x04J4*\tD\xa1H\x82\xbcc%\xd0&amp;7\xec\xa6,\x10Jal\x89\xb2%\x92H\n\ti$E=f\x9a\xa0\xd8OD\x11\x99\x9f,(uE\x90\x86\xe0\x1cF\x1b\xea\xaa\xe1\xda\xf5k\x0c\xce1\x1eM\xd8\xdb\x1b\xd3\xad:\xce\xee\x9dAY\xc10\x0c\xeb\x1b\xe2\x9d~Z__\xa7\xb6\xb0R\xcaM\xf8\xe7\xbf\xf89\x9a\xaa\xa6\xae*\x9aQ\x85\x10\x91\xe5b\xc9x&lt;B\tA,-V%dJ(%PB\x12\\\x8f\x8c\x81\xc2*6G\r\xa3ZQYIQZ&amp;\xd31e\x95\xe9.ZI\xcc\x1002a\x8cBhH\x88&lt;x6\x05\xc6Z cTFJ\x02\xf96I\x8c\x88\x042\x81\xd6\x16-%H\x102s\xe9\xa5\x10\xa4\x90\x08\xde\x83\xd0H\xadIJ\xd2\x8c\xc6$S!\xb4\x06\xa9\xd0\xb6\xc2\xd6c\x84\xb2,\x02\xec%\xc5C\xf7,x\xfep`\x15avr\xc2\xb4\x99pf\xf7\x0c\xcey.\xce^`&lt;i8\xbb\xb7\xc7\x8d\xeb\xd7\x10D\xc4Zl{\xda\xd6\xa9-,\x80\xcbW/\xf1\xa5\'\xbe\x94\xb1")Y-3\x12\xae\xa5d\xb9\\q\xe1\xc2\x05B\xdfq(\x06\x8c\x84\xe8=JI\x927(4VKF\x95\xa2\xa9%\xa3\xba\xc8\xd7\xf5qA3\x1aQU5JJ\x84\xf3(\x99\xd0\x12\x12\x11H(\xa3Q\xcad\xd5\xb3\xcc\xd8T"\x9fp"\t$\xb9\x80\x94\x16(\xad\xd1eA\x9f|~\xc8!"\x81$"&gt;\t\x04\x02i4Z\x1b\x10`\nK5\xdd\x06;B\x165\xf5d\x0biJ\xfa\xa0x\xfex\xc6\xb9\xb3\x17\xb8\xd1&gt;GL\x12\xe7\x03\xbe\x1f\xb0\xda\x12\xa2\xe0\xfa\x8d\x1blom\x92\xb6#\x93\xc9\x14\x80\xd9l\xc6i\xc4JOua}\xfe\x8b\x9f\xe7\xc9\xa7\x9f\xa2\xacJ|\xf0\x0cC\x1e\xa9\x04\x1f1\xd6PV5\xdd\xd0\xb3\xb7\xb5\x81\x1bV\x88T\x90\xb1\x03\x83"QZ\xc5\xa8\xae\xa8JIa\x14\xc6(\xa4\x90h$*\xadA\xcd\xb2\x06\x02*F\x9c\xebQZ!\xcc\x9ao\x1e\xe2zt"\x912A\x0c\x08@\xafY\x9d\x89H\x14\xe0\xbc\x87\x14I$\x14\x89\x98\x12B\n\xca\xaa"\xa6\x84T\x8aB\x1b\x94\x8a(\x91\xb0\xc5\x04;9\x83\xad\'\x04\xa5\xd1\xa6d\xf7\xfc}\\\x7f\xfe\t\xf6l\xe0&gt;\xb7\xe0\xd2\xd1\x9c\x18$\xfb\xd7\xaf\xf1\x8aW\xbf\x16\x1f#m\xd7\xf1\xcc\xd3\xcf\xb0\xbb\xb5\xcd\xe0\x87|\xcc\xaa\n)N\xdf\x00\xe5T\x17\xd6W\xbf\xfa\x15\x96\xcb\x15U]\x13\x12\x8c&amp;\x13J\x93w\xaf\xb2,y\xe4\xe1\x87\x89\xdd\x8a\xeb\xcf}\x95\xc5I$\xf8\x90\xe1\x02)\x91\x04\n-)\x8b\x02\xa53\xe7\xca(\x85Q&amp;\x1fQ1\x12\x06G,$J+b\x02\xa55\x855H\xa3\xf1\xde\xe3\x83Gj\x81P\nD"F\x08q\xc8-\xb2\xca@\xaa\x07\x92\x0f\x19^\x10y6)\xf2y\x88T\nc,1\x06\x84T\x04\x1f\xb0\x14HY\xa2M\x8dT\x16\x9f\x02RAQT\xd4\xa31..\xb8\xb0s\x86\xe5\x00u5\xe1\xd2\xc5\x1b\xec\xef\xdfD&amp;\x18\xda\x9e#\xe7x\xf2\xa9\xa7\xd8\xdb\xddE\x00B&amp;\xe6\xcb\x19\xdb\xc5\xee\x9d~\\\xbfg\x9d\xca\xc2J)\xe1\x9c\xe3\x89\'\x9f\xa4,j\xb46\x14e\x99)(]\xcf\xb93\xdb\xeclm\xa2D$\tAQ\x95\x84\xa1\xc0;Ot!7\xe2Jb\xb4A\x92 %\xb46\x08\x91\xfb6\xad\x04}\xdf\xa2\xbc\x01\x126\x19\xb4\x96\xb9\xef)+\x8c\xd6X\x1d\x89E\x01B\x90\x04\x19y\x97\x1a7\x90\'\xacB`\xac\xa5\x90:3/\xfc@L\x1e)\x12B\x82L\x12\xa5,J\x94\xd8\xc2\x92"\xa4\x00\xde%\xfa\xaeE\x87\x01-\nD\x88\x84n\xc0\xfb\xc0\xc6\xe6\x0eW\x0e^\xa0R\x05g\xa6;\x1c\xf6\x16[\xcey\xea\x89\'0E\xc9\xde\xce\x0eC\xdfC\x82g\x9e{\x96\x07\x1e\xbc\x9f\xf9\xfc\x98\xeb\xd7/\xb3\xbd\xf5\'\x85\xf5\xef\xb4\x9ey\xf6i^\xb8\xf2,\xc6*\xb4\xb6T\xd5\x08\xe7\x03;;\xbb\x8c\x9a\x11\xfdr\te\xc1\xc6\xe6\x08\x11w\xe8\xe6\xfb(\x91\x102\x0f\x83%\nH\x08\x95(\nEL=Z\x1aR\x8a\xf9\xef\x05H\x95\xf0\xbeG\xaa\x84-*lU\xa3l\x9e\xe7!\xf3\x0e%DB\x1b\x031\xb3\'\xa4\xaa\x11R\xa1d\x86+\x84\x84\x94\x02\xce\t\x06\x97\x1b}! \x84\x88\x12\ne\n\x8a\xa2\xc6\xf5\x01e5.\x05N\x8e\x8eH\xc5\x98$\x15R(D\xc8Ug\xaa\x11B6\x081g2\x19\xa1\xc5\x14d\xc5\xe1\xf11;u\xcd\xde\xce6!\x06\x8c\xd1\x99\x85!\x04\xbd\x0fL\xa7[w\xfaq\xfd\x1b\xeb\xd4\x15V\x1e\xb9D\x9ez\xfa\xab\x1c\x9d\x1c\x90\xa4D\x08\x10B\xb19\xdd\xa0\xa9K\x96\xb3\x19\x85\x88xW\xb3\x9c\x0fh\x05\xd6(\x10\xe0d"\xf8\x80V\xb9\xc5\x962!D$\xc4\x88#\xa1\x95$\xa6,g\x17\xeb\xae7:\x87H\x05":\\\xdb\xe3\xdc\x90\xd1|\x91\x85\x18\xd6X\x94\x14\x90R&gt;J\x03D!\tA\x02\x89a\xe8\x10R\xe0|\x8f\x91\xfa\xeb;\xa4\x96$\x021z\x84H\x08\x05\xc6(T\x8a\xf8\xf9\x11\x83J\x08\xa3\xf1&gt;0\x9eN\x18ml`7vI+\xa8\xe2\x805\r\xba\x98\xb0\xecZV\xed\x92\xcd\xad)\xcf&lt;\xf3\x0c\xb3\xd9,\xcf(E\xa2\xf3\x81\xfd\xa3\x9b\\8\x7f\xdf\x9d~t\xbfg\x9d\xba\xc2\x02\xf0\xde\xf1\xd4\xb3O\xa1T\x01R"\xa5\xc9\xb8\x14\x89\xd9\xf1\t\x8b\xe3}\xceno\xb2\\-\x18W%\xd2{B\xf0\xc8\x14QJ\x10c"\x04GY\x96\x14\xc6`\xb5d\xe8Z\xacUy\x9c#r\xff\x93\x10\x04\xe7\tC\xa24\x12\x115J\x81\x12\x12e\x0c&gt;\xad\x87\xd2"\xa0\xd6\r\xb2\xf7=1E\xb4\xd1\x04O.z\x99n\x8f\x85\x94\xd4(\x04"I\xdc\xe0p\xc9\xd3\x89\x81\x14\xa1\xa8*TT$Z\x82[\x02\x1df2%!\xe9Z\x894\x16;\x19q&lt;\xbb\x82\x08!\xdfN\x8d\xc6\x96%C\xdfs\xdf\xfd\xf7\xb3\x7f\xb8\x0f"\xb1X\xae\x88!\xd2\xad:\x14\xa7\xcf\xf7\xe1\xd4\x15\x96\x10\x19\xf0;\x9a\x9fp\xf6\xfcY66\xb7\x98\xcf\x17loM89&gt;f&gt;\x9b\xa3\x85\xa0\xeb[f\xb3\xc8l\xff:6\x0eX\xa3\x10(R\x8c\x84\xe8I!\xe6^GIR"\xabwR\xc6\xa1\xac5H\xa5\x11$\x84\xd6\xc8\x04\xa5\xa9(\xcb\x02\x08kr\xa0\'\x06\xbe.\x1a\x8d\x82\x14E\x86\x19\xa4D \xd6hw"\xa5\x88Z\xcf\x16SL\x04\xd6\xfe\x10\t\x8c5(i\t!s\xcat\xd2\x14U\x89\x92\x11)\x04F)\xa4)\xd67K\xd8\xda\xde\xc1\xcfn\xb08\xbe\xce\xc9\xec\x06v\xf3^\xa6\x93\r\xba\xbe\xc3X\x93)=k\x99\x9a\x94\x9a\x07\xee\xb9\x9f\xad\xcd\xed?\x99\x15\xfe\xdbV&amp;\xf5\xb5\x1c\x1e\xed\xb3\xb3\xbdEL\x89\xd9\xc9!n\xe8\t\xc1a\x8d\x06\x12&gt;D\x16\x8b%c\x0b\xa5\x11x\x97H"\xa1\xb5\xc2\x18\x83\x8b=\xce\x0f\xf8\xa8\xd7\xf3D\xa8\xac\xa5,kR\xcc;\x8c\x00\nk1\xda`\xaa\x1ac\x0b\x84\x80\x98\x1c\xd2\x0e\xa8\xa8\x10B\xad\x99\x0f\xf9\xf6\xa7\xa4AH\x89Q\x8a$n\x01H\x91\x18#n\xf0H\xa9Pk\xe7?\xa9\xe5\xda\xfdO"\xb5D\x97\x05\x88D\x88\x02[\x96\xf9\xa8\x8d\x9e\xe8\x15\x08IaKLa)\xaa\x06\xb7J\xd8a\x8e\x8e\x1e\xad-{\x9bc\x96\x8b\x05\xc7\xc7G\x90\x12\x93\xc9\x04\x90\x0c\x9dc&lt;\x9e\x9e:\xbf\xadS\x07\x80\x08!(\x8a\x8a\xc2\x96&lt;\xf9\xb5\'\xf8\xe2\xe7\xbe\xc4j\xd1\x92HH%\xd9\x98n\xe4\xe6\xd8{\xca\xa2d\xb9XprrL\xee\x86\xc0\xb9\x1e\xc87?\xa3\x15\xc1\x05\xa4\x10\xeb\xe3O\x13}\xa2(J\xbc\x0f8\xef\x10R\xaeGlypll\x892eF\xde\xcb\x12T\x86#\xb4\xd1$%n\xf7\\\xb7\x18\x051z\xfa\xbeg\xb5l\x91\xca\xd0\x8c&amp;\x94M\x8d4\xb9\xc1/\xcb\x9a\xaa\x19\xa1\xad\xc5X\x834\x8a\xa2j0U\x8d\xd2\x8a\xa1\xebY.\xe6D\xef\x11\x02\xea\xbaf{\xef,\xb6\xd8\xc4JK\x1af\x8cF\x96\xad\xad\r\xc6\xe3\x11\xf7\xdes/\xce9\x16\xf3\x19J\xab&lt;V\xd2\xe6N?\xb6\x7fc\x9d\xba\x1d\x0b`\x18z\x86\xa1CYM#\x15{g\xf70E\xc10\xb4\x14V\x13\xca\x82\xf3g\xcfp\xfd\xea\xb5|\xe4i E\x84\xcc\xac\xcd\xe0"I\xde\xc2\xc7\xf3\x98FjML\t\x17=\x85\x10Tu\xcd\xb5kW\x88!PW\x15V\x1b\xa4\xb5@\xc4jE\x88\x12\x17&lt;\xc9\'b\n\x08)H1\xe0\x9cD\x8bH\x18\x96\xf8\xd4\x83H\x18m1\xbab4\x9a \xa4$\xc5\x1ei5JZ\x8a\xb2!\x8a\xfc\t\x8e!"\xa4\xc2X\x8b\x94\x86\xa2\xac\xe8\xbcG\x84HJ\x81\xd5rNL\x9e\xb2j\xa8G\xbb8\x07O_\xbd\x88\xde8\x8bH\x1bXcx\xf8\xe1G8&lt;&lt;\x04r\x0f\xf7\xf0\xa3\xf7g\x01\xc8)\xda\xad\xe0\x14\x16VJ\t7\x0c\x84\x18\x18\x8fGhmx\xf0\xa1\x07y\xfe\xb9\xe7\x18\xd55\xfb\xfb7\xd9\xdd\xde\xe4\xf8\xf8\x84\xe5r\x85\x18zl\x19s\x8f\xb5\x1e&amp;\x87\xe0)\x8dE\xca\x84\x94\x91\x18\x03npD\x19\x881\x82\x90\xd4uIQ\x95\x9c\xccftm\x8b\x1b\x06\x9a\xaeccc\x8aj*\x8c)\xb2G\x83\x18H\xc1\x11\x92\xa7\xd0\x1a\xad-J\xde\xe2p)\xa4\xd2\xa4(I\x18BH\x88\x18\x08\xc1c\x94\xc0\x98\x82n\x08$\xb9\x06S\x83G*\xcd\x10\x02\xfdjE?xtQ \x85\xc4hM\x12\x82\xc3\x9b\xfb\xd4FST\x15\xa65\x14VQ\x94%\x1b\xd3\r\x0e\xc2\x11RE\x9a\xd1\x08\x84\xa4iF\xdc\x7f\xef\x03\xa7\xd2\xb4\xed\xd4\x15\x16\x90\xc1GSd\x80QIN\x0e\x8f\t\x83G\xd75R)\x96\xcb\x15\x84\xcc\x1a\xcd\xectH\xc1\x13\x15\x18]\xe4\x87-"F[\xb4\xccL\x83\x94\x02]\xd7\xe1\x9cb\xf0\x1d&gt;\xe4Y\xe1h2\xc69\xc7\xb2mY\xadZ\xfc0`\xcf\x9d\xc5\xe8\x06\xb9\x96\x81E!\x11\x03\xf8\x14\x89i`\x18\x1c\xb6(\xa9\x9a\tD\xc5\xc9\xd1\x02\xa4\xc7\x1a\x8b\x94\x82(\x14.8T\xcc`\xe9j\xd9S\xd5\x15e5\x02-\xe9\x86@]\x97(]\x10\xa5\xa4\x1eOX\xae:\x8c\x16h@K\x8d\xaa+\x8ef0\x1e\xd7\x90\x12\xe3\xa6\xc1\xfb\x84\x0b\x03\xafx\xe5+\xb9t\xe9\x12Z[67N\x1f\x86\x05\xa7\xb0\xb0\x84\x10\x84\x108&gt;&lt;f&gt;\x9be@3$\xb4T\x1c\x1e\x1cc\xac"\x86\xc4\xd0u\x84a@j\x91\x9bed&gt;\xb6d\xc4\x18\x8dL\x89\x04(\x99\xa9+1F\xa6\x1b\x1b\x14e\x9e\'\x1a\xa3I\t\xa4\xd4$\xd1!b\xa2\xb2\x96\xae\xebX-\x96\x98\xa2\xc0V\x16\x92\xcc*i["c\xe6\xbe[\xdb`\x8b\x11\x93\xe9\x0e\xb3\xe3\x19\x87GW\xd9\xd9\xd9Bi\x93\x9bs\xe7(\xaa\x06\x1fe\xc6\xc0t"\x84\x84F"R\x06n}\xcc@\xaa\xd2\x1a\xa5\x14\xe3\xc9\x98\xbe\xf7\xd4\xcd\x88\xc5\xe1&gt;\x08\x07\xc93\x195\x9c\xcc{\xba\xb6e4\x19\xe3\x9d\xc7\x98\x92\xbe\xf7\x1c\x1e\x1c2\x9b\x9f\x9c&amp;\x1a\xd6\xedu\xea\n+\xc6\xc8\xa5K/\xb0\\.(\xad\xc1X\x83\xd1\x8a\xd9l\x86@P7\x1b\xa4\xe0X,\x16\x94BC\x18\x18\xfa\x80\x11\x82\x14=\nra\xc9\x0c3(\xadi\xaa\x11eQQ55F\x1b\xbcwk~\xbbD+\x831\x96~\xd5f\x05\xb5s\xf4\xdd\x80T\x1a[6\x08-9\xba~\x95zTB\x14\xf4\xc7-U\xd9`\xeb1!J\x0e\x0e\x0e\xe9\xbb\x96\xd2\x96x\x17\xf12d&amp;\xaa\x8b\xd8QE2\x05\xd1\r\x0cn\xa0\xf5=1J\x84\xb1\xac\x06OQ:\xeaf\x0c\xb2\xa3\xa8\x1b\xc6\xd3)\xab\xf9\x12)`\xb6&lt;\xa2\xaeJ\xbc\x1b\xd0$\xfaU\xcb\xd6\xe6\x0eN;\xaa\xd1\x18\x92\xa4]9\xa4R\x995s\xca\x8a\xeb\xd4\x15\xd6j\xb5\xe4dv\xbcF\xab\xc1\r\x03UY\xaeE\x12\x11%%7n\x1e\x12C$1\x80\x8c\x90\x04&gt;\x82\x1f&lt;Zi\x8c\xca\x83\xe4\xba\xaa(\xeb\n!\x05m\xf0t\x8b%")\xb4\x06\x11\x131\xa6|\x03\xd5\x9a\xc9x\xbc&amp;\xe6E\x16\xf3%m\xef\xd01\xe2\xdb5\n\x8fD\x9b\x82KW\x9e\xe3\xcc\x8e`cw\x97\xb6[\xb0\x7fp\x83\xf9b\xc6\xfe\xcd\x9b\xa8\xb2`\xe5{\x96\xb3\x19I@5\xddF\x95c\x92\x1fX\xf6\x0b\x06\xd7\xe3\\"\x05I5\xaa\xd1\xc6\xa0\x95\xe6\xdc\xb9{\xd9\xde=\xcb\xde\xb9\x06\xa9-JgJ\xb5\x0f\x03)F\xf0\x1ec\x14!\x05\x9cOh\x12\xb6(\x19\x8fGXkN]\xe3\x0e\xa7\xb0\xb0\x9afD]U\xb8\xe0899f2\x9e@\x92\xc4\x90!\x86\xabW\xaf\xe2\xfb\x1e\xe2@\x12\x11\xac\x04\x0c1DlQ\x82\x90\xb8\x18\xb1\xb6$\x19\xcb\xc1l\xc9b\xbeb6_\x11\x10\x84\x94Y\x08ea\x10)\xd2\x94%#\xab\x996\x15e\xa1\xf1}\xc7j\xd12h\xc5\xb9\xe0X.g\x10\x07\x8aR\x90\x84\xe4\xf8\xf8\x88\xa6\xac\xd9\x1a\x06\\\xec\xe8\xfd\x8cE;\xe7\xda\xc15\x8aQC\xdb9n\xdc&lt;`\xe1\x1c1\xee\xd3\xf7Y\x15T4\x05\xca* 2\xf4\x1d\xf5hD\xdd\xd4\x88\x988&gt;:\xe1\xe1G#J\x8d\x99lTDm\x90f\x0c\xe1\x10-\x04\x82\x81\xd8\xcd\x11a\x97\x10\x02\xa4LF\xb4\xc6\xe0]w\xa7\x1f\xd9\xef\xbbN]a\x01\xf4n\xc0\xaf]\xf4\xba\xae\xc35}\x1e\xf6\xc6\xcc\x0c\x10\x02\xa4\xf7\xf4q\xc5\xb8\x9c \xa5X\xcf\x05%\xcaZdQ\x80\xb6\xdc8\x9aq|x\xc4\xecdI\xd7y\x8a\xba\xa1\x1b&lt;m\xeb\xf1&gt;\xe0\x83\xa3\xaaJ\n\x05\xbb\xd3\t\x93I\x85\xf7\x03\xcb\xf9\x9c\xdd\xa5\xe3\xe6\xf1\x11\x8a@S)\n+q\x9d\xa7=\x9e3l\x0e\xb8\xbeE\x9a\x84-4&gt;yf\xab\x19%\x9e\xa3\x93%7\x0e\xe6\xcc|\xa4\x1b\xe6,\xe6\xd9\x10DJ\x85V\x9a\xa2\x82\xb2\xd2L\xfa\x81\x07\xc6\x13\xce\x9d\xd9\xa1]-x\xe6\xe9/\xb3\xbf\x7f\xc4\xd9\x0bg\x18\x8dk\nU`L\x05\x85g\xd4$\x0e\xf7\xaf\x13\xca\r\xbc\xb0L\xa7S\x96\xcb\x05\x93\xc9\x98\xe2\x14bXp\x1a\x0bKd\xc9\x95BB\x08X\xabY.\xd7\x0e\xc5C\x9bE\x9f1\xc1\xd02\x9e\x94\xb7\xc1M\xb3V\x16\xcf\x17+\xd2\xb2\xa5\xbfy\xc8\xf1\xd1\x11b\xddG\x95uC\xdf{NN\x16\xb4\xad\xa3\xef=1%V+G\x8a\x81\x9b\xfbs\xaa\xcaPhE\x88\x03\x9d\x83\xbe_1\xae%0f\xb5j\x19V\x1d}\x0c\xf4\xbegh\x97XY0j\xa6\x0c\xc3\xf3\x18[\xac\xe94\x89\x10\x03\xed\xb2\xe3x\xb6\xa0\xed\x06\x84R\xa4$\x90\x0ebP\xd4\xd5\x16\xa5\xb1\xcc\x0e\x0e\xd1)d\x0e\x98\x16\xc40\xe3\xf8X\xb0\\(\xa6\xa3\x11M\x95\xc77I\x08fG\xc7\x8c\xf6\xf2\xcd\xf8x&gt;C\tI\\\x83\xb5\xa7q\x9d\xba\xc2\x12\x08\x1e}\xe81\x1e\xba\xefA\x8e\x8f\xf7\x91J\xb2\xb5\xb9\xc9\xc9lN\x88Y\xc0\x10\xfb\x01\x9bBV\xd7\xac\xa5\xf2Be\x04}\xb9\xech\xdd\x80\xd4\x06!5R(\x9cO\xcc\xe6\',W\x1d!J|\x088\x97\x07\xc3\xd1g\xed\xdf \x05m\xdbR\x1a\x85\x10\x0e\xbc\'\xf8\x9aa\xb3@kIs|H\xbb\xecY\x0e\x03\xabv\xc9j5C\x17\x1bTU\x8d\xb1\x16\xe7&lt;z\x18\xf0\xc9\xe3\xa3\'\xf4\x8eF\x1b\xea\xa9\xa4\x1a[\x8aQ\xc3\xeet\x93R(B\x0c\xec\x9d\xd9\xc5\x18\xc3b\xb9\xe0\xf0`\x9f\xb2*(\x0bAU[\\Pt\x1a\x9ar\x13\xa5\x0b\x8c\xf1\xa4\xd81?\x993\xb2\x15G\xb3c\xf6v\xf6\xe8\xfbn\xed\xf4w\xfa\xd6\xa9+\xac\x94\x12\xc6\x1a\xee\xbd\xf7^\xbe\xfc\xd4\x97p\xce\xe7\xa4\xad\x94\xddb\xfa\xc1\xd1\xb7-e\xa9r\xff!\xb3D&gt;\xa4H?\x04|\xa6\x9d\xaf\x8d\xd4$\xcbE\xcb\xaa\x1d\x881QVE&amp;\xff\tI\xf2\x91\xae\xed\t\xd1\xd3\xf7\x1d\xc30 \xbc "\x90:\xb2j[B\xf2x\xdf\x90b\x00\xe9q\xbd\'%\x18B\xe0d~H9\xb6\x18\x03Mei\xdb\x8e\xae_\x11\\\xcfdb\x19O,FK\xca\xa6bs{\x83\xcd\x8dM\xacT\x94\xc6\x12C\xa4,Kl\xd5\xb0\\utmO?\xf4\x18\xab1\n\x8a\xb2\xa4\xb4\x15\x83\x0b\x18\xa30uA\xd7\xaf\xf0\x07\x87Pgl.\xad\x99\xa7\xe8SHx\xe7\x14\x16\x96\x10\x82\x8d\xe9&amp;\x8f&gt;\xfc"&gt;\xf6\xc9\x8f2;&gt;f\xb5X\xd1\xaf\xba|\x04\x02\xc4\xc4\xa8i\xd6\x03\xe4\xfc\x89u&gt;08\x8f\x90\n\xa9\x14\x11\x91Ml\xeb\x92\xa2\xd0 "\xe3\xbafs\xda0\xaakFU\x855\x06e$m\xdfrxx\xc4\xfch\xc6\xf1\xf1\x9c\xc3YG\xdb\r\xf4]\xcfBjR\xf4\x0c\x83\xa7\xa9J\xac\x90\xb4C\x87\xd0\x12m\x15\x18\xc5\xd6\xb9m\x0e\x0fN\xb2E\xe5\xc80\x15\x96H\xa0(2\x93\xc1\x18C\xec:\x92^\x0f\xb0\xa5\xc2h\x85\x96\x92qSc\xb5\xa1\xeb\x0c!D\xfa\xc5\x02b\xc4*\x93}\xe0c\xbf\x0e\x8f:B\xa7\r\x9aa\x8b\xb2(9:8\xa0,\x0c\x91x\xa7\x1f\xd9\xef\xbbN]aAV%\x8f\x9a11\xe4Q\x8c\xef\x07R\x08\xa4\x10\xd1R\xe1\x85 \xa5\x98U5R"\xb4 \xfa\x84P\n\rD!\x18\xdc\xc0\xaaki\xea\x8aQm1\x1a\xce\xeenr\xfe\xcc\x1e\xa3\xb2\xa2.K\x8a\xb5\xcePY\xc9\xd0\xe7a\xf0r\xd9\xf1\xfc\xe5#\x9ez\xe627\x0f\x8e\xe8[G\xd7\tf\x12\x88\x1e;)PVc\xcb\x02c\x0b\x92w4MM\xb7\n\\?\xb9\x89\xd6\x06](Rtt\xab\x9e\xcbW\x0eX\xaeVT\xd62\x9dL\xd9\xde\x1c\xb3\xb1\xb1\x81\x0b\x89\xb14\x8c\xc6\x13\x9af\xcc\xecd\xc6\xc1\xc1\x01\xcbv\xc5r\xd5"\x85ak{\x0b\xad-\x83\x1b\xd0Fp2;\xe6\x1e%\x99N\xa7\x1c\xed\x1f\xe5`\xa9ft\xa7\x1f\xd7\xef\xbbNea)\xa5\xd8\xda\xd8bh;\xfaUKg[\xda\xe5\n\xef\xfdZ5#r\xd1yGa\xe4mC\x0f!en\x9c\xbb6\x1b\xfd\xfb\x80\x06\xce\x8c6\xd9\x9a\xd6\x8c\xab\n\xab\xd4\x1au\x17\xccNf\\\xbbr\x95\xe0\x12\xabU\xc7|1\xa3\x19O\xb8pn\x9b\xba)y\xf2\xc9\xeb\\\xb9~\x13\xe7\x06z\xe7\xe9}\xa6\xc1\x8c\xc6c\xca\xb2"\x86\x88\x16\x02%\x05)\x08\xfa\xa5\xa3\x17\x9eV9\xdan\xc5\xf2\xa4\xc7\'\x83\xad&amp;8/Y\xce\x80\xa1GF\x9f\x0b\x7fu\x83\xe5|\xc1\xd9\xf3\x17\xb8\xff\xfe\xfb\xf1.\xe0C\xc4y\x07\xd1\xdf\xb6PRJ\xb3\xbd\xbd\xc9\xcd\xe7\x97x\xe7\x11R2x\xcf\xee\xf6\x06\xfd\xca\x9d:\xca\x0c\x9c\xd2\xc2\xca}VA\x08\x993\xb5Z\xadp\xce1\x0cCv\xea\x13 \x90h\x14\x92,\xe7\xea\t$\x99E\x18}?\xe0\xd7\xee.\xd3\xf1\x88\xa6\xaa\x88$|\x0ctC\xcf\xe1\xf1\x11\'\xc7\x8e\xae\x03\xe7&lt;Ua(KKQO\xb9zm\xc6\x0b\x97n\xb2\xbd\xbd\x83\x88\x89e\xeb@\xe6\x9b[\x8c\x89\xc2h\xca\xc2bU\xbe\x8d\x85\x10H&gt;\xef\xa6\x8b\x93\x8e$\xf2\x18\xc9G\x07Q!E\xc1\xb5\xa3%G\x8b\x05\xfd\xaa\'\x05\xc9d\xbc\xc1\x85{\xb7x\xfc\xa1m\xae]\xbd\xc2\xc5\x8b\x97\xf9\xa67~3;\x17.\xb0t\x0e\xb9\x9a\xe3B\x8f\x8f\t-5F\x17\x08!q\xaee\x18:\xda\xd5\x127t4\x8d\xa2*\xab[\xef\x1a\xa7\t~?U\x85\x95R\xba\xfd\xd6\x9c?{\x81\x9d\xcd\x1d\x96\xf3\x05\x83\xf7\xc4\x18\xb3I\x9a\xc8Ce\xa9\xe4m\x86\x811\x86\xa4\x14)E\x86\xc1e\xf1C\x02[\x1a&amp;\x93\x11\xc2@\x94\x8a\x1b\x87+\xbe\xf2\xe45.\xdf&lt;\xe1\xe6\xe1@\xa4\xa2m\x07\xcelOIC\xcfd\xecy\xc9c\xf7S\x99\x11\xd7\xaf\x1d\xb0\x7frL\xbbZ\xa1JAY\x14\xc4\x90)\xcaF[\x88\x9an1\x10B\x8e\xa0K!\x12\xbc\xcf\x92\xae\x98\xf0&gt;\xb2Z\xf4\x1c\xf7s\x9a\x07\xeee6[\xb1\xb9{\x0fO?}\x99\xcd{\xce\xf2\x99\xa7/\xf2\xc5\xaf}\x95o~\xfdK)\xec\x82\xf7\xfd\xe6\xfb\xf8\xb6?\xf3\xedlnN\xb89\xb4\x14\xe5\xda\xa1P\x1bR\n\x94UEYXNN\x8e\xd9\xdd\xdef\xabV\\}\xeaK\x88\x1b\xfb\x0c\xf7]g\xbcu\x81\xd1\xe6\x1e\xd2\x14w\xfa1\x02\xa7\xa8\xb0RJ\xac\x16\'\x9c\x1c\xdd\x00\x01Z\x97\\\xb8\xe7\x1cO=\xf75\x8c\xcaf\xb5Z\xe7\x91K\xb6)\x12\x08\x05\x10\x89) \xa5\xca\x86\xffJ`\x84Fk\xc5t\xdaP\xd5\x05ID\x9e\xbdx\x93K\x97\x8f\xe9zG\xa8\nb\xa1\xd0\xca\x10\xfa\xc0\x8b^\xfd*\xae]{\x9eW\xbd\xec1\x9e\xfe\xd4\xa7\xd0i`sk\x13\x90\xd4e\x01*\xd2w\x1d\xa3q\xc1\xf6\xce.\x9b\x1b[\xd4\xd5\x08\xef;\xfc\xb0\xa2\xb6%C\x9d8sf\x8a\xd6\x96\xf9\xa2\xe5\xf8d`4\xae9\xff\xf0\x0e\x93\xfb\xef\xe7d\xd5rs\xff\x90&gt;-\xb8tp\x91\x81\xc8\xee\xb9\x07\xf8\xd2\xd7\x9e\xe1E\x0f\\\xa0\x9b\xf7&lt;\xf3\xe5\xafp\xe1\xc1\x87i6\xa6$ \xc4\xcc\xdfJQ\xd0\xf7\x03\xab\xc5\x82&gt;\xb4k\x9dd"v\x0b\x8e\xe7\xd7\x91\xdd\t\xfd\xce\x83\xb8\xbd3L\xefy\t\xba\x1c\xdf\xe9\xc7y:\n+\xc6\xc8\xd5\x17\x9e\xe0\xd3\x1f\xf89\xae&gt;\xfb$\xca\x1a6\xf7\xeea\xea\x0ey\xfc\xcc\x84\xfdY\xcb\xc29\x02\x12\xe7=f}9TJ!\xb5\x04)1\xc6P\t\x81\xaf*V\xab\x96\xba*3\x91\xce\x05\x9e{\xfa"W\xae\xce\xf0\x016\xf76)\xb7\xc6\xf88p||L5J|\xf9\xab\x1f\xe3\xfc\xb9-\x1eyh\x8fM\xf9\x12&gt;\xf1\xe1\x8fst|\x84T\x82\xdd\xed\r\xda\xaeep-{;[lnn\xd1\x8c6p\xce\xd3\xaf\x16H\x02\xa5\xd1L&amp;\x05\x8f&lt;v\x81\x1b\xd7\x0f\xf0\x1e\xb6\xb6\xcfQ\x16\r\xc9h\xa4V\xdc\x7ff\x8a\x8cK*;\x01\xa9(\xc6;|\xf3k_\xc6\xf5\xa7?Ow\xb2DIO\xbb\\Q\x15\x05B\x1a\x84\x14\x14EIH \xd7^\x12\xf3\xd9\x82\xed.\x1b\x9dX\xe9\xa9\xa7\x96n60\xb4s\x9e\xfb\xca\'\xb9\xfe\xee\xe7x\xe3\xf7\xbd\x99\xfb_\xffg\xeex\xcfu\xc7\x0b+\xa5\xc4\xecx\x9fw\xbf\xed\x7f\xe2\xf0\xab\x9fC\x1b\x8d\x0f\x89\xfe\xf0\x98\x07\xb6\xb6\xa8\xef\xdb\xe5\xab\x97/\xb3\x7f\x13\x9c\xd2$\xd7gHA+\xb4\xb5(m\xd0F#\x94\xa0H\x92E\x8ch-\xd1\xc6\xe0}\xe2\xf9\xe7/s\xe3\xfa\x11\xe3\xf1\x94\xb2*\xd8\xdc\xd9D6\x05\xdd\xd0\xd2X\xc9\xb2\x9a3\xa9\x0b\xde\xf0\x92G\t\x077\t\xab9g\xcf\xeer&lt;_0\x0c\x03eY\x11TO\xad5gw\xa7\x8c\x9a\x06)\x15\xdd\xea\x90\xd8\x9e\x80\x12\xa8\xc2\xa2\xb4\xc0\xf9\x01\xad-\xe7\xcf\xef\xe0\x9c\x07%\xd1U\x81\xad\x12\xaf\x7f\xec^vM\xe0x\xde &amp;{\\\xb8\xefQ6u\xe4\xc1W\xbd\x12)\x05\x07\xfb788&lt;\xe1\xe2\xd3\xcf2\x19OI\xc6\xa0\x8b\x01Y\x94H$[[;D\x14\xa9\x1d\x90\xed\n\x89[{Jt\xec\x1f\xee\xf3\x91\xdf\xfc\x10q\x7f\xce\xce\xb9=\xee\x7f\xdd\x9bXo\xe7\x7f\\\x0b+\xc7\xc1}\xf6\xe3\xbf\xc9\xc7\xde\xfdk\xdc\xb8v\x04\xe3\x8a\x8d\x8d\t\xdb\x93\x05gWK\x9ai\xc3\xe6t\xc4\xfd\xf7\xc0\xc5\xfd\x15\xc3m\x9f\x82\x845\x1a%3\x7fK\t\x89[u\xd8\x98\xb0EA7\x0c\xdc\xb8z\x83\xa3\xa3C\xb6\xb6\xc6\xdcs\xe6\x0c{;[\x94\x85\xca\xffN\xed"\x94\xa4w\x1d\x93QE\xa5\xa1\x9d\x1d\xe0\xdd@J\x11)\x14\xda\x18\\\xf4\x84\xe08\xbb3\xa6\x90\x82\xe4=\xa4\xcc\x12-\nC$\xdfF\x8d1()\xe9\xbb\x9ev\x9e\xe3|C\x08\xd4!\x10\x96KR\xf4\x9c\x1fW\\\xd8\x9e`\xa7{ =&amp;\xf4\x8c\x9b\x86\xc9\xf6\x1e\xf7\xdc\xf7\x10\x87\x87\x87\x1c_\xbfB\xa1:6\xcflR\xda\x0c\xe8\x8a$\x18\x8f\xc6\x9c?\x7f\x8e\xc5b\x06~@+I\x1b\x1c\x81\x15\xd3M\xc3\xc3\x8f]\xe0\xe9\xd9\xe7\xb9\xf1\xc2g\t\xc3\n]\x8c\xb8\x93\xbeF\xa7`\xc7\x8a&lt;\xf7\xcc\x178\x99\xcf\xf0R1_\xb4\x9c\xf4\x03\x03\x9bH\x19\xd9Q\x89\xba*\xd9\x9c:.\x1f\xcc\xe9;\x8f0y\x8c\x93u\xeb\xf9\\L!\xcb\xdb\x95\x14x\x1f\x98\x1f\x1d\x11\x9dcok\x8bQ\xdd@\n\xf4\xab9*\x98\xcc\x87\x8f\x99+_7\x15\xa2[\xd1\xc6\xc4l\xb1`\xff`\xc1\xfe\xfe\x8c\x80\xc8sI%3\x065\x9e\xac\xb9Z\xcb\xeci\xaa\xb3\x07)!\x12Bb\xe8\x06\x9a\xaaa:\x85\xfd\x1b\xc7\x84\xd5\n\x80^$\x9a\xc9\x18S\x16\xf9\xd2a\r"z\x94\x96L\xa6\x1b\xd4e\xc3d\xb2I1\x19\xb1\xb9\xbb\xc7\xcd\x8d1\xed\xaa\xcd;\x96Vy\x8c \xb3g\xd7x\xd4ppx@\n\x03(\x87\x0fm\x96\xf5+\xcb\x99\xf3\xe7\xb9T=I\x7fp\x8d\xee\xe4\x06\xcd\xde\xe8\x8e\xde\x11\xefxaA\x1e\xf6\x96\x8d@\xd7\x96Z\x94\xf410o\x97\xb4\x93\x92\xd6ydt\x18\x130:\xe2\x83\xc74\x15\xb6\x90Y],\x04FK\x12\x89\xb24(\x99\xd9\x11;;cH\x82\xaa(!Jd\x14H#\xa8F5\xa5\x91hr\x8fVU\x05Ea\x99/\x97\xcc\xafv,\x16\x1d!z\xc4:\x94\xc9\x14\x86\xa62H\x95H1\x90\xa2\xa0*6\xa8m\xcd\xec\xe4yp-\xbe\x1b\xf0]\x87\xaer\xca\xd7\x90$G7\x0fPBRX\x83\xf7=C\xeciFcvvw\x91R\xe1Sb&lt;\x19\x11}$\xa4\x81\xdew\x18SbF\x13&amp;;g\x10\x02\xb4R\xa4\xe0\x11kN\xfc\xe6\xf6\x16\xc7\xb3C\x86~\x86r-\xd6\x08$5 h\x9a,\xe6p\xc3\xc0\xd0\xceh\xee\xf03=\x15\x85\xa5M\xc1\xc6\xd6\x16\xde\x0b\xda\x94\xd0^`\xca\x9a.F:\x1f\xa9\x84\x04/\x18\x95\x15F\xb7(#Q\x1ab\xf4\xa4d\xb3\xb5\x90U\x18]\x90\x92e\xb9\x84:\x16\xa4(\x90Ba\xb5B\x92\x10Z\x12\xc4@Z\xcb\xb4\xaa\xb2`1\x9b\xb38Z\xb2\\\xf5\x0c\x83\xc4\xf9\x88\xd4\x92\xa2P\xd4ev\xf0+\x0cH%\x08\xe4Y\xe5b\xb9`T\x97\xb9\xc9\xd6=\xb6\xb6D\x99\xad*}\n\xdcs\xcf6u\x99\xcdtSt\x94e\x8d(\x0b\x06?p\xe9\xf2E\xa4\x10\x8c\xc6c\xb4\x01\xa94\xf3\xd9\x01Ut\x98\xb1@\xfa\x94)\xd0"Q\x96%\xf3\xf9\x02\x99$.%\x9a\xcdM\xc</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -501,6 +539,14 @@
           <t>Vagner Mancini</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x006tEXtComment\x00xr:d:DAEewil2SDw:1926,j:28989272107,t:22061918\xba\xf8\xa7\xb5\x00\x00\x03\x00PLTE\xff\xff\xff\xcf\x93\x96-)1U\x91P\xfe\xfe\xfe#\x1f%\x1f\x1c!%#)*&amp;,i\xa8d\xd1\x98\x9b\x89\\`P\x8fMf\xa5brFG\x1b\x18\x1c|JM\x17\x14\x18W\x95R\xc9\x94\x97\xb8\x82\x86\x82PS\xcd\x96\x9b\xd1\x95\x98tIJyJI\xb2\x80\x84\xce\x90\x92\t\x10\x183,3\x81JM\x90]`\xbd\x93\x96\xca\x8d\x90l\xaag\xba\x8e\x92o\xaej\x92VXzDG\x8cVY\xd1\x9a\x9f\x9ekpZ\x96V\xc4\x8e\x95\xc8\x96\x9c-i-\xba\x89\x8b\x7f^c\xbc\x85\x89\x05\r\x13\xb4|\x80{PQ\xc1\x85\x88\xc1\x90\x8f\xc0\x88\x8c\xc7\x90\x90\xc0\x81\x82\xc4\x94\x97\xc7\x8b\x8a\xd5\x9c\xa0{\xb6uP\x89K\xc0\x8c\x8f\x9acf\xcb\x90\x95\xaeqtb\xa1_\x88ST\x13\x19(\xba~\x82\xaemn\xb2wzt\xb0o\x83VYuKO\xadux\xa0gi\xba{ylCF\xa6pr\x13\x11\x13mJM\x0c\x12 &amp;b&amp;_\xa0[\xa8km\xc5\x88\x8e\x8eRR\x10\x17!\x17\x1c-{Y_818\x98_a\x8bbh\x84Z^41;wci\xb5\x86\x89*!%\xcb\x9c\xa1Y\x9bV\xa7z~\xa9~\x83\xa1}\x85\xd3\x9f\xa5\xa7vw\x7f\xbbyA&lt;FA\x81@\xb4\x8b\x8f{SW\x03\x08\x0eLIQ\x9fw}\x84bf\xb6ut\x89MQ@+-\x94hk\xb8\x7f\x8b\xfc\xfb\xfb;7@\x92bf]\x9cZ\xae|}\xc1\x96\x9bG\x86E\x97YZ\x8bkr\xd5\x97\x9cUBF\x95ns8l2nPU\x86PL\x95x~WLQ\xa4\x83\x8b\x83\xbd}dMPx\xb3q\xd8\xa3\xaa\xc4\x86\x844(,\xb9\x84\x8fJ25%\x1a\x1c`UY\xbf~|\xa0rv&lt;|;`&gt;@|mr\xac\x88\x8f\xa8gf\xbc\x99\xa0B8=\xee\xec\xedGBIcEG\x81gllY^\xc4\x9b\x9f&gt;16\xa1bc\xe6\xe3\xe4\x89z\x81\xad\x83\x88J\x8bI\xc5\xa0\xa7c58\xaew\x82vuy\x85syuQT=r:tX\\\xbe\x87\x903t4\xad\x97\xa0\xf8\xf7\xf8\x1b 3I\x7fD\xa4\x8f\x96q\xabk\x97\x81\x86u@B\xe0\xdb\xdc]Ye\xdb\x9e\xa4R\x96PK:&gt;X57lip\xf3\xf2\xf2\x9f]_\xb9\xa1\xa8\x81\xb8x\xa7q|\xa7drkadW;&gt;VRX\x11#\x1a\x98qx\xcc\xa3\xaa\xbd\x7f\x88\xbax\x83Du@k??\xb7\xb4\xb9\xb4\x92\x98=#$\x8a\xc1\x82\xc4\xc1\xc5\x83\x81\x88\xd6\xd0\xd2WS_\x1a[ \x8b\x86\x90\xc5\x81\x8bZ.1M\')\x1f@$bbl\x0eP\x17 %:\x180 \xaf\x8e\x95\xcc\xcc\xcd\xd5\xd7\xd7+Q-\x94Mar6:\xb9q}\x97\x89\x8f\xb3kx\xac\xac\xb0\x8d\xc6\x87O\x81L\x98\x94\x9a6b73\x1b\x1c\xa7\xa2\xa8\x90\x8e\x97\xa3Yi\x0c&gt;\x12\xc8\xac\xb4\xd7\xc1\xc6\x82=N\x9f\x9e\xa5.D1\xb3ek\x83\x9e\x83\xd7\xac\xb6\xb6\xc7\xb5\x1c\x0b\x97^\x00\x00 \x00IDATx\xda\xcc\x98\xefK\x1by\x1e\xc7u\xc8\xfc \x05\xc7\xe0\x1a\x9b\x86\xb1\xe4A\xcf\xdc\x93v\xd9&amp;&amp;\x8dP#b\xa4\xad\xb1\xfa@=v\xec\x8e\x1b\xe8m\xcb\xc0\xed\xec\xe6&lt;2\xb0`MY\xeb!M\x88Zr\x94IlIe\xe1pK\x1f\xe4\xc9i\x96\xa8}R\xa5O\x94\xa2\x06\xd9#O\xf4\x99PZ\x1f\xc9=\xb8\xf7g\xd2r\xff\xc0\xd8\xde\xc7L2\xd5\x96\xbe\xfa\xfe\xbc?\xef\xefgZWgI\xd9l6\xf3\x8d\xaa\xceV\xf7\x7fP&amp;J\xa2\x08\x9aDn\xb1hK$L\xb4\xcf[E[\xb1\x98\xcb\xe5\x16\x8f\xde\xef\xad\xecm/U\xde\xeel\xef\xac\x1c\x1c\xe4&gt;\xabd\xb9\x9d\xa3\xed\xed\xa3\xa5\xdd\xfd5F\xd0\xaa\x1a\xc39x]Q\xabZ~\x7f\xfb\xe00\xb7^\xfc\x1c\xaa\xd9\xea\x12\xef\xf3\xaa\xaa\xa9\x82\xc00&lt;\xcfs,\xcbq\xac\xc0\xb3\x0c#(zum\x7f{\xe7\xb0\xf8Iy\xe8\r\x16\xda+\xf1\x02/\x08&lt;H\x04N`y\x96\x03\x1d\xbe\xc33\x12\xcf\xe8J\xb5\xba{t\xb4\xf8i\xb5\xda]Z_\xa9\x82\x86\x85P\xc0\x11D\x9e\x03\x9f\x00\xc1\x04\xbacD\x9ea\xa4\xbc\xba\xb6t\xb8\xb8\x9e\xf8\x04F\xb3\xe5\x0e\x8au\x89#A8\xda\xe5\xa8s\x12PD\x96\xe1X\x8e\x05\x95(\xf2\x84\t0\x07x%\xed\xb8T)U\xf7WN\xddd\xb6\x955\xe58\xb7^\x15\x18M\x81\x9bX\xf8J\x00\x85\x0c.\xc2\xe2D\x86!@\x91\x17\xf1CF\xcb\x97Jy\x9d\xa9\xe0_b;\xd5\x8cZ,1\xb2R=\xac\x8a\x8c.\xc0V\x02C\xef,#\x11\x0c\xb9\x8c\xe5\x19\\\xbc\xc3\xc1\x8a\x18\x00]Wt]W\x19\xedx1q\x9af_&lt;.I\x92\x9e_R\xd1&lt;F\x12$\x05\x96\x17b\xb0&lt;\x1cE@p\x19\xdc\x8f6:8Q\xe4HKF`TEP*;\xa77\x95\xeb\x87G\'\x15\x06X\x0c\x85\x02\xcc#0\xd0\x073\xc8\x88\xb2`b\xa1\x91&lt;\x0b2\xb3`4\x96~\x0fC\x7fd\xed\xb4f\xd2V\xdc\xd9\xdf?V%Y\x96X3\t`s\x11v\x12XA\xfa^\x8aq\xbc"\xb01\xea (9^\xe4D\x87\x03\x8d\x04\xae\xa2k\x95\xb5\xa5\xc5Sr\x97\xed\xf0x\x7fM\xd3T\x99\xe19\x91\xec\xce\xd1_\x1e#\xb5$\x878\xcb\xf1\xba\xc0\x03\x8e\xda\t\xe5\xa0\x15\xb0 \x98\xc8\xeb\xaa\x9e\xdf\xac\xee\x9d\xce8\xdal;\x15@\xe9:\xd9[\xe4\xa8ch M\xa1\x84\xcb\xe1\xe0bR\x0c\xbe\x12j\x81\xc1s\x0e\xe2\x1ap\xd4\xa2\x1f\x8a\xed\xe6N\x83\xcbV\xdc\xae\xe8\x8c$+\x18&gt;(@j\xc5\xd8\x98.q\x92\x9cg@#\xce\xc6\xd2\x82\x04*2&gt;l\'\x0e\xc0\xf5\x8e\x81\x01\xea%/\xf1\x8a\xa2\xbe/Z\x8fe[\x7f\xab\np\x15\x98b\xb1\x98\x10c`\xec\x18\x1a\xa8\xca\xb2\xaa\xe6c\xb3\xb0UZHKlL\x16($\x18v\x00X\xa4\x16]"\x8b\xd0\x97\xb4\xed\xe2it\xb0\xa2(\xe0\xc2\xa4\x01K\x10$\t\x18\x05\x89\xd1%\xc30\n\xe9\x98\x90N\xc7\xd2\xe9YY\xc6O%\x89\x85N"\x15\xa8\x06L2NP\xb4\xed\x84\xd5z\xe5J\x8c\xa2\xf0\xbc\xae3h]Z\x92H\xa4\x82l\x18RZ\x82\xb9\xa44\x95T\x18\x97\x0c\xfcR\x95\xa0\x13\xb5\x90\x98&gt;\x96\x03\x9d-Y}\n%N\x14E\xd1\x19\x018\xc8\x03\xd9(\x94\xcb\x05\xa3P0\xca\x85\xf1t\x0c\x98\xe9\xf4\x9b\xf4x\xb9\x00P\xd5\x90\x11\x16\x94Z\x1f\xa0&gt;|\x88\x0e4\xf2x\xddR\xac\xc4AIAk\x90\x8b\xd4F\x00\x94\xcb\xc9\x85\x8dL\xa6\x9cL\x963\xe3\xa8B\xfa\xcdx&amp;YH\xcbF^&amp;\xef!\xf9\xcd\x16\x8ad}\xf4\xd0\xc4by\xed\xd0R\xb1V\xf65\x84$\xa3`W\xc9K\xe9\xf1\xcc\xc2\xf3\xe7\xd7/\xff\xe5\xec\xd6\xd9\xeb\xfd\x83\x83\xd9\x8d\xcc*\xd82\x1b\xc9\x0c\xe4*H\x90o\x16%r\xb3P\x0c/\xa2\xc3I\x04{9\xf4\x15K\x8f\xec\x95*\xd2\x88\xc7\x18\xca0S&amp;{\xb9\xad\xf3f\xe7hgg\xdf\xe8\xe8\xf93g\xbe\xf9zpp!\x8bZHf\xe0/C\x02\x96\tf\xc2\x89\xb3\xb3\xe8(\x0eIR\x8d\xdd\xb3\x14\xabXb\x19\x8c=\xc7IL\xa1&lt;x\xbe\xeffo&lt;\x1e\x8d\xc6\xe3\xf1\x9bC7o\x0c\xf5\xfd\xed|\xdb7\x8d\xcd\xcd\r\xfd\x0b\x19\x08FM\xcd@\xbe7\xa8\xf4;\x10\x8a\x1f\xa6q@\xfc~\xc9R\xac\\\x85\xd6\x17\xecQ\xb2Z&gt;\xdb\xd9EL\xd1\xe8|0\x15\xc4\xdd\xfc|0\xd8\xdb{\xb3o\xa8\xaf\xb9\xf1zvc5\xb3\x9a\xddZn\xbc\xbe\xf5\xcf\xd5\xdfWWW\x7f\xff\xf7\x9bw\xb3\x1fCBd\xdfZ\x8a\xb5\xbeI\'0\xc7\xcb\x85\xf2\xf5\xbe\xde(\xa8\x00\x93J\xcd\xcf\xcf\xa7R\xf8L\x85\x82\xc1\x9e`\xef\x85\xb6\xe6\xc6\x86\xe5\xa9\x0b\x13\x13/_N\x8cL\xb5\xba\xfe\xd0\xb0\xbc\x0c\xbc\xf1w\xb3\x14\xab8"\x07N\xac\xc5\xdaU\xb07a\x0c\x0b\xcf\xfbH\xa9\xf9\xa8\t\x84+T+\x8f\'\x14\xf2uuu\x8eN\xbc\x1c\x8aD\x1e?\x8e&lt;&amp;\xb2\x91\xa9\xa9\xa9\xd6\x86\xadl\xe6\xcd,\x98\xb0\x1a\x0e\xe8\xeb\x96\x8e\xe2[E\x91\x80e\xcc\xdc\x8c\x7f\x94*Tcr\xd7\xe3\x0b/\x80\xf9|=\xbd\x11\x18.\x1e\x89\x10\xda\xb3\x89\x0b\x04\xd6\xearm\xad\x8e\xd3Tb\xcd\x91\x0e\xac\x94+\xb1\x86,e\x05c\xfaVoo\xcdU5$\xb3\xea\xa9Z\x88\x0c\xdfB_\xe7\xa3\xd1H&lt;\xf2\x9f\x1a\xd7_\xa7Z[[]\r\xab\xe3\x14d\xbccm\xc5\xd2\x13q\x97N\x1e)\xf9\xe2\xeeW\xa6V\xc1\x14\xf5\xcd\xe3\x06\x8d\x87\xa4\xaaoi\xa9o1\xb9R\xd4[\x98/\x0e\xb9&gt;p\xa1H/l8\x8a\xb8d\xed\x91x\xc4\x08\xacd\xcc\xdc\xba\xd1\x135m\x952\xdb\x07\x1a\xc0\x10\x92\xdd\xbc\x03V0\xe5\x83\xfd\x11\x1e\x918\xb0^N\\ ,\x97\xabak5\x8d\xcd\x9e\xd7,\xf5\x96m\x97C\x94N?\xb9\x7f\xb7\x07\x1d\x9c\x0fB\x95\x90\xdbn\xb7wtt\xd8[\xecv\xb7\x1b\\\x90+\xec1\xd5\xf2\xf9\xe6\x83\xc0\x8a\x98X#\xa6Z\r\r\xd9\x8c\x84\xc5\x9f\xb14O\x13UAQK\xff\xb8\xf7\xe8F4\x18\xa4DH\x85\xea\xeb;\xa8~\xfb\xad\xa3\xc3k\x02\xdaAF`A\xc2\xf2\xf5\xc4#]]C\xcfjX0\xd7`\x7f&amp;\x8d\xfd\xffO\xdbV\xee\x10\x87\xaa\xaai\x9bc\xf7\x1f\xf5F\xcd\xac\n\x05\xea\xedT^;a\xdd\x01\x9e\x17X\xe0\n\x93`&gt;\xeac\xbc\xab+\xf2\xb8\xef\xa3Z\xae\x86\xfe\x8d\x02\xb2o\xe0\xc4J\xac\x13^\xd3\xf2sO\xee\xfd\xf1\x069+\x14\x08\x04\xbc^j\x9f\xd9\xc2IR\x8d\xd0\x08\xcc\xed\t\x84B\xed&gt;\xd8+NX\xa3\xff\xc3\xca\x1ax6q\xecZ\xb7\t\xda\x8aK\xbc\xbe977v\xef\x87s=A\x1fQ5\xa1s0&lt;l\x05K\xc1\xfa\xf4e\xb7\xe3\x0eT&gt;\x9f/\x15\x8c\xf6\xa2\x8bC\x84\x85\x02\xd6r\xffBY\x96\x14A_\xb4N\xae=\x8d\x91\xb5\xe9\x99\xb1\x07\x7f\xff\xe5\x0b_\xbb\x9f\xb0\xbc\xf6\xb0\x93&lt;E\x99\x15&amp;$\x1aE\x8f\'\xec\t\x10W0H\xb3h\xaa\xd5\xd6=2\xd2\xda\xe8Z\xdeZH\x1a\xb2\xaep;\x96a\xd9\xde\xab\x8anL\x8f=y\xf0\xddO\x17\xaf\xfa\xfdM\x81\xa6\x80\xd3\xd9d\xf7z\x9d\x00r\x87=\x1e|x\xbd\xd0\x0f\x96\x0f\x0c\x07\xda}_\x92\xb7\x80\xf5l\xf4|[\x1bN\xc7Fjb2\x99WU\x1c\xd6\x965\xf1\xad\x92W\xf3\xaf^\x8d\xdd{}\x17XW\x00\xd5\xe4\xa4\x97\xd7\xee$\xb1 \x12\x9aHF\x83\xb5&lt;\xc3\xc3\x18D\x13k\xa8\xef\xd9(\xe4j\xebn\xa5\xe0\xcan\x18\x06\x9e2+9\xcb\xe2a_\xaahs\xc9\x99\xb1\x1f\xbf\xfb\xe5[\xff\x95+Mf9\x9d\x94\x0b\xee0\x1d\x87\xe1\xda`R\xa4b\x14\xdb\xb1ND\xa3\xbd]\x8f\x9f\xd5\xb0\x9a\xe1\xad\xb3\xc0*\x1b2\x9e\x08v,\xdb\xb6\xd6\x94&lt;\xac\xf5\xf4\xd2\xbf\x1e\xfc\x99\xb0\x9c\x80\xf2\xe2\n;\xe1&amp;@y\x86=\x1ed\x85\x97\x12\xa2\xc5\xe3\t\xb4\xb7\xfbp\xfaPla\xa3\x80\xb9\x9a\x9b/\xbb\xce\xf6o\x94\xcb\x1a\xcc\xa0\x1cYe\xae\xc5\xaa\x9a\x9f\x9e\x99y\xf1\xeb\xa5[\xb7\xbf\xfa\xd2\x0f \xb8\xde\x1d\x088\xd19\x80\xb8I\xae\xb09\x91n\xba\x1f\xf6\xf9\xda\xa3\xb4F`\x10\'&amp;F\xba\xbb\xbb\tk+\x9b4\x0c\x98+\xff\xde\xb2M~I\xd7\xd6\x9e\x8e\x8d\xbd\xf8\xfa\xf5\xeds\x17\xfd`\xf2#\x9c\x02a\x04\x83}\x12`\xb55\xc2&lt;\xacq\xe3\t\x81+\x88A\x1c\xa2\xa3\xfa\x02\xb0\xae\x99j\xad\xe2\x19N\xd5\xf3\x9aeX\x8bKje\xee\xd5\xab\xa7/~\xbc\x7f\xfb\x9c\xdfor\x85B\x10\xa8\xde\xee\xed\xe8\xa0d\xa0r\xb7LB8{=Z\n\xd7\xf7|&lt;\x12I\xadk\x97/\xbb\xfa\xb3\x19&lt;~ky\xfd\xc42o\xed\x966\xa7\x9f&gt;}q\xe9\xfe\x0f?]\xf4\xd7\xb8\x80\xd5\xe4\xf4\xdey\xf8\xb0\xa3cr\xb2\xc5\xdc\x1f\xd0Q\\4\x98\x1e\n\xae\xf8P\xed\xa4&amp;k\xa1pV\x8fc\x145\xfd\xc4\xaa\xdcZ\xdf\xafl\xceM\xcf\xfc|\xe9\xf5\xed/\x10[\xfe\x90\x1f]\x0c \xb7@\xf5\x90N\x1ep\x01)lby[\xc2\xe1\xf0p\x0f-\xaa\x98D,\xce\xdd\xcdS\xe0r\xb9\x166\xc6\x0b\x86\xac\xe6\xf7\xad\xfa\x0f\x92\xc4\xb1V\x9a\x9b\x9e\xfb\xf9\xcc\xa3o\xaf\x9ab]\r\x05(\xb5@e\xca\xd5\x81(\x9dl\t\xd7C\xb7\xfa;^$Z\x18M\x04\xd6P\x1f\x1d&gt;P\xeb\x1a\xc95\x98\xcd\xfc\x975\xb3{i3\xcf\xe2\xf8\xbax1\x18\xb0.\xf1yj#M"!o$\x18\xd16\xfaT\xc8\x0b!\x91\xbc\xd4\x8c\x17I M\xb2\xda\x10M(\x86\xa8y\x99\t\x91\xd4\x84\xb4\x91\xe0j\xcc\x88\x1a\xab\xf1m\xa6\x98\xb6b\xe9@\x19\x1b\xd1\x8eC\xada\x1a\xb1\xca\xb6\xd2(\xbd\xd8B\xb5^,2\xb2\xddA\xca\x9e\'e\xff\x02\x9f\xdfE.\xbc\xfa\xf0=\xe79\xe7\xfb=\xce\xdd\xb81\xe5zC\x90\xe5*\x06\xacD"\x1a\xe9\xf6\xb6\x17J\x88\x0f\xfazX=\x80e\xc7\xf5\x82\xdfF;\x07\xcc\x83\xbd\xef"\xfc\x15\xa8x\xc2\\Sm\xadZ\xab\xd5\x88\xf1\xed\x83\xd49\x01\xab"\xb5\t=?\xb5\xf7\xe7w\x84-\x9fh6\x1a\x9a\xee\xf6R\xfe\x8fUO\xe6\x91\xad\xaf\xf0g\xb5Z\xedv\xce\x80\x1dEQ\xc9\x80\xbd\x0fE\xed\x1c\x1e\x8f\'\xdcj\x92\xaa\x01\x8b+\x16\x9b\x00\xcbY\xe7t\xd6\xa9\x9a7C\xab\xf7\xb2\x99\xd7\xc4YfW4:3mv\x14:\xab\x1a\xdf?t\xfa\xc4\xc2\xc2D\x7fGWGGW{g5f%\x93\xf5\x12\xbb]\xa2\xe7qP\xa1\x90W^\xab~1\x02\x8f\xeb\xa7\xd1\x94\xf0\x16q\xbdZFWCs\xd9\xcc?\x89\xc3\xc2]\r8\xe6\xf2\x1a\xa0j\xab\xbeZ\xddn6\xb6N\xb7\xc6\xa2\xa1\xd5\xd0f\xcah1\xdb\xdaD\xc2\x1c\x8f\xc3!\xcbk0Qmm\x80kY\x8c\x85R\x91\xa5%\xa3\xb3\xa5%\x95r\x1a\x17\x01L5\x1a\x0fE\xf72o\t\xc3z\x9dI\xb4\xb6\x8e\x85\x03\xe5BQy[\x1b\x03k\x0bOGR\xab\x83\xdf\\\xbe18\xe8Ykii&amp;9\xd4\xb5"\xe8+^\x93ZT\xae\xf5+\xe1\xab\xc3\xef#\x83\x83s\xf7\xe2s\xf1xh\x11\x1e^\xc5{\xd9\xec{\xe2\xee\xf3\xaf\xb3\xae\x99\xb1\x02Vu[[\'\xa3\xad+|[\x10\xc3/\x937Ov=\xf1\x94JE\xd2\xe9\xe4d\x10\xabF7Oq\xf8\xeb\x9a\xd7\xe6\x80\xea\xeb\t\xfc\xe6`&lt;\x1eO--:\x9d\xaaTh5\xe3z\xfe+\x81X\xd1\x04`Qj\x00\xab\x93\xd1\x1e\xbe=\xbd\x94\xf2x\xe6&lt;\xbb\xbb\'\xf0\x0e\x9a\xcb\xd8&amp;\x9d\x88\x03\xcd^\xae5i4\xec\x8aQ\xcf\xf0\x85\xe1\xe1\xe1o\x87\xff\xf6\xed\xf0\xaeg3\x16\xdb\x8c,\x81Z\xa3\xa1\xa9\xcc-"\xb12\x89\xc4\xcb\xe9.J\rt\x16\x83~\xbf\xe3ws\xcb\xc1hhu\xce\xe398\xd8\xdf=PU\x94\x99\xd4\xf5\x8d\xf6\x92\xfar\xa9X\x86\x94\xc6\xf1S\x08\xe8\x88\x9f\x92N&lt;\x11\xa3\xa0;\x163\x16\xb0\xa2\x99\xef\xdf\x10\xf6?\xa9\xe2\x0f\x99l&amp;\xf1(\x1c\xa8\xe6]\xed\xa4OLtv\x91\xf6[6\xa7.\x0f\x9f\xec\xaen\xa6\xb7\xf7\x95~\x1a\xb7\x8dl\x1f\x00,\xad\x18\xa7:\x19&gt;Y\xdb\x8c\xe3\xb7-\xcf\xdaA\\`\x11,\xc5\x8c0!R\x805E\x9c;\xfd\xcb\xdbL613f\x86\xf9\xc0\x80\xc9\xb0s\xbf\xbd4}\xd0\xfa\xc7\xfb\xe7\x7f\x7fy\xef]\xf72\x95E\xe3\x8a)\xe8\xc0\x00G$\xd7\xd1\x94\xa9\xdd\x83\xdd\xdd\xb5\xb5[\x7f\x1d\x1e\xbe\xf9\xcd\xe5\xe1\xb5\xdd\xcdn\x81`\xba\x80\x15\xcdN\xb9\xfe \xae\x88o\x9f\xbb\xb2\x8fZ\xbb\xaa\x85\xf8\xc0\xa2\xef0\xbc\xfb\xcd\xb7?\xff{/{a\xca\xf3\xcb\x0e;\xc8d\x89M\xea"\xc0\xaa\xbf\x9ed#k\x07\x07\x00\xf6\xe8\xcdCpi7Zc\xbb\xf1\x83E\xe0\x128\xeb\x16C\xae=\xd7\xde;\xe2\xb0&gt;d\xf6\x1e\xfe\xf4\xd3x\x8d\x08\xc3z\xe9tF@\xc6\x16?\xe8|\x92\xb9\xec\xb9\x17\xea\xa7\xf8\x86\x1e0MA\xe9\xc5\x95\x95\x92\xfa\xa6y&amp;\xb2\x0f\xfd\xb6\xbf\xf8\xdb\xa7[\x83\x17.\x7f\xdf\x1a^[\x1b\x05\xacn\x81\xd2\xe9\x8cE]\xae\xbd?\x89\x8b\xaf\x93\x0f\xa3\x89GO:kx|\xfelo/\x83\xe2\xd0\xea\xb8\x94\xa1\xbb\x91X\xec\xf6}\xcd\xfa\x86.\xa0\x0b^\x07\xac\xca\x86\x9eu\x03\x92&gt;\xd8O\x1f:;\x9e&amp;\xe6\xe6\xee%\xc2\xe6\xe6t\xa9\xc5b\x14X\x00+\x12\xcd\xba\xf6&gt;\x10\xe5\x1f~\x9d\x9c\xfc\x14M\xbc{B\x11a|\xeb\xec,F\xaf\xa6P(j\xca\x90m\x04V\x8bI\xac\xe1j\xb8\xdcdCe_\xdf\xb5\x1e\xc5:[\xb6\xbd\x9fNo/\xd7yoG"\x8b^?R\xb1\xbd\xad$9\x95\x16\xe0Z\x8a\xba\xb2\xef\t\n&gt;?\x7f\x06\x81lf\xf3\xa7\xa7\x05,x\x98\xa8\x8dNo\x0b\x04\xc0 \x04\x99&amp;\xae\xcd\xa65\xad+\xfeq\xad\xb2\xb2\xe1l=h@.m\xaf\x8d\xaa\x9c\x08BEdT\x19R\xa6R\x95)I\x16\x0b\x8ee|\x99\x8d\xbe\x99$\xa4\xb7\x8a?3j\xe4\xf2+5\x81\xbbO\xcb\x85\xbc\x02\x16Y\xc4\xa0\xcf\xd2\xa1\x94\x0e\xb5:\xa0\xd6\xaa\xb5\xe2\xf9\x9e\x9e|\xbe\xaa\xaa\xe1,hpS\xa9\xact\xba\xb4\x02a\xc3\x03\xb6:\xa7\x92D\xa2\xf9\x01LYg\x1c\xcb\xc4\x96\xee\xfe\xf2\x9a\x00\xb0\xc9\xb6\xe4\x0b^\x15\x19\x15\x8e\xef\x14\xb0^\x81W\xc0\xe8\xbd\xb3\xbdt\xb0\x12\xd5\xe0\x14\xa4\xday\x1d~\xb6\xccWV\xfe\xd0\xb3\xee\xa6\xba\xef\xdc\xd9\xde\xdf\xbeD\x95\xd1L4\x1aIi6\x9b\xbd~\x7f\x18\xb8@\xad\xb1\x99H\x85\xaa\xa2\xf9\xb7\xf3\xfb\xd3gI\xc3\x03:\xb9\xd1N\x1e\xef/\xc7[\xden\xe5\x93\xc9\xfc\xd9\x05pZ\xbdtFy\x93Z\xadk\xd2_i\xd8\x02\xac|\x83\x02\xc7r\x1b\xdc\xe9}\x96L,\xd6\x88\xfd~o8\xec\xe5r\xbda/\r\xe42\x8eE\x94H\x99\xc5\x19&gt;\xff\xb6~\xa6\xd8\xf0]\xad\xb7\x0f\xa0\xff\x02,!4\x97\xddn-`Y\x17\x16@2Fum\r\xb9\xea\x8a|K/\xd1\xe7\xb6p,\xaa\xdb\xc0\x94\x1dn\xb3\xbd#\x8e\x11\xae\x98\xeb\x15s\x1d#a\xaf\x9fF\xb28\x8d\xad\x16\xd9\x1d\xc4\xb9\xdd}\xfe\xbb\xee\xb3\x9ec_=j\xff\x82\x8e\xb7\x97\xe3s\xcb\nTPF~/4\xd9l/\x1f\x13\xd6s\xc8W\xb6\xb6r\xf9*\xfd\xd6\xd1\x06\xd3M-C\x0c\x86 s\xb9\xcc\xcfu\xd8l\xe0\x04\x01\xcb\x01n\xd0\x0cU4.)\xd92\x99j\x9fD\x80ZGG\xbek\xf5\xd8+\xebx;\xf8?\x8cO.d\x08\xa8#\xc6\xc702&amp;\x92\x94\x14\x81L\xf2\x9c^\x92?:&gt;\r\xb2\x91\x82\\b\x13U\xc6\x1d\xb19\x1c`P\x01+\xec\xc7{\xde\x08j\xd1\xd8w\x10V\xd7\xf9\x87\xc4\x8f[\xb9\xa1\x1a\xf9\xd5\xde\xd9\x8e\xf6j\xc0\xc2x\x90+8h\t\x04\t\xb2\x84\\\x0f\x99\xbf\x08\xaa\'\xcf\xe5\xf2\x12\xfd\xd6\xf1\x86\t\xc7\xa2\x1a\x98&amp;]\xd0m\xd2\xdal\x0e\xad\x16\xff\xe5\xfaI$\x92\x00\xb0\x8c$\xe5%\xa4l\xe7\xfc\x9f\xe2dC~\xe8:vU;\xd1\x0fX"\x1e\x0f+\xc4\xb0\xc6\x12\x88\xa9\x12&lt;\xa8B\xba\xd7\xe7r\xbe|^\x9f\xdf\x02\xb9 O\xc8\xdcnfp^\x17dj\x1c\x01\xb5C\xadu8\xb4\\\x1aL\x89n\x01`!uJ\'B\xc0\x97\xf83\xef\xa8\xf6\xfal\xc00\xf1\x14\xb0\x84"\x1e\xb9\x90Y\x81\x0b\xbf\x1f\x01S__eC\xce\x97\xcb\xebsG\xc7\xc7\xc7\xa7\x1f\xd92\xa5\x0c\xd4\x9a\xd7i\x82A\x8d\x94\xd2T\x1b\x90B,\xa3YH\xdd\x805\x13I_\xf2"\xca\xff\x9c\xdfr}g=\x92\x0bE\xea\x00\xbd\xdf\x06j\x89x|0\xa1\xf8]\xb9pp\xa8\xbc\xd8\xb7\xd2\xd7p}\xc8\xa7\xaf\xca\xe3T\xc7\x1b\xa7L\xb7\xb2\x8ee0\xad\'!\xea\xeb\xa4\x90\x16)j\x1c\x0b\x17\x0b\xc7\xdag\xb1e\xe6\xb7\xe7\xdf\xd6\xc5_\x8e\xaeXyM\x18\xe3\xae\x8d\xc1\x00\xb7\x85\x15.\xa6hI\tp\x01\xd4J_\xfeL\xe1{,)\x02\xae\xdc\xd1\xe9\x86\x86M\xad+=\xa4\x06\xd7\xe7u\xba\xa4\xae\t\x7f\xb0\x05\xf0\xd6\x02\xac\xa5\x99\xc5\xd2e\x16\xd5K\xc4\xff}&gt;\xcb\xd1/")F\xbf;\x8eca&lt;&gt;j\x1fh,\xaa\x84`\xdf\x07T\x17\xf3g\xa7\xea\xa1\x9cd`@\x92\xcfom|\xfc\x08\x0b\xa7"}\xe8\x16\xeb\x14\xbadR!\x95*\xa4\x90aah\xe1X\xad\xad\xc6\xb2e\x16\xcbO\x00V\xf1[\xf9\x00\xe7\x07\x05\xd6\xdb1\xde\t\\\x18\x9fo\xe54\xda%8\xd6J\xe3Jc\xe5\x0fg\xa7\xbe\xc7\x8f\xd1/\x9f\x07P\xf4\xf1\xf1G|\x0f\x96\x1d\x1e.3u\n\x85N\x91L\x82d:\r&gt;K\xbbq\xac\x19\x01r\xc8B\xbc\x04$\xc5\xe2g&gt;{\xfe8)]\xe8\xe8\xea\xc4\x8b\xc8G\xad\xf8x(H\x05%\xd4\xf7\xaco\x0c\xf5Z\xf1\xe1\x8f\xf2}\x1bP-\x0bB]&gt;&lt;4h@(\x85b~&gt;\xa91\x99\x00\x8bd\x86\xd6\x1a[\x12 \xcbn\xb6\x99\x88\x00\xfb\xcc\'\x01E\x98\x94\xf1\xfe\xce\xceBo\xa1(\xcc\xad\x02\x15|\x85GI\x85\xcf7\xc4\xe8\xe5\xf1\xf8\xbc\xad\r1,f3I\xc9:&lt;\xfc\xef&lt;\x8e%\x9d\x0f\xea\xc4L\x1a\xedk\xc7\xb7\x8e\x19\x05e0miD`M2\x84G\xe0\xa3t;O\xc7\x0bX|\x94\x8f\xa2E_\xb5\xaa\xcc\x9f\x9d\xd5\x88\xe4b\xea\xef;CC\xbe\x17b\xd8{-*\x04a-\x1f\xfe\x8fv\xf3{M\xa3\xcd\xe2x\x16zUA\x84\x984\xceE\xb4Hc\x07C\x0c\xa6\xb4\t/\xe4\x07%\r\x9a\xd4\xe2E\xb2 5(\xc1\x99\xf6Ba$\xabA"\x9dFd2H\xc1\x92\x95\xea;t\xab\x92:\xe8\xc4\xa0LAL)o\xd2\x88\xda\xc5$\xb4B[\xc8\xdb^\xc9KS{\x11\xdel0\xd9\x8be\xcf\xd8\xdd\xff \xf3@0\x97\x1f\xbf\xe7&lt;\xe7|\xcf\xf3&lt;\x9e\xefNL\t\x87\xba\xbb3\x02\xd6\xcf\x8c\x8f\xdb,\xc6\xa3\xad\xa3\xbe\x0bQ\xeb\xd5\xde\xfe\xd5\xc9\xe9\xd9\xdd\x18\xdd\x96\x0b\x92K\xc0\xfa\xe5\xcd\x93\'o\x1e\x83\xc3\x9a\xec\x1e\xbfQ\xd1Hjx\xb9fu\x99\xdf\xfd\xed\xcf\xaf\x99\xad\xde\xde\xf3\xc5\xf5\xdd\x89\xc9\xa9\t\xa8\x12\xf7\x05\x7f\xf33\xb5l\xb9L\xe6\x08\xb0.b\'.\x9dy\x17\x16\xfaGf\xd9\x06\x1d\xfb\x1fV\x7f\xf7\x15\xc0z\xf3\xcb\xe3\xab\x7f\xbf\xdb\xd9=7\xc8\x95\xadA]p%\xf4\xdb\xd3\xa7\xc2&lt;\xbb\xb5\x08\xcdz\xf6\xce\xd4\xf0\xdd\xa9\xd9\xdd\xddGJ\xa5F\xf3s\x1f\xda\xccG`Y\xbb\xa8\x0b9\x85x\xae\xf2\xfa\xf7\x9e,,\x00V\xdd\xa9jw\xe8\xce+W\xdab\xfd&gt;|\xeb\xf2\xb86\xcc9\x03\x162\xf8\xdb\xca;\xb3k\xfb\xe9\xf6\xfb\xad\xde\xc5k\xeb\x13\x937\x86\'\xf5w\xd6A\xab\xff\xa7V5.=\xba\xed\xb6\xbaJ\x172\xfb\x80\\\xf9\xf4\xc2\x826\xcc\xf3m\xac\xce\xb6ZO\x9e&lt;\xfe\xcb\xd5\xe1\xb9\x85A\xedh\x99\x88Dp\xdc\xf2.h\x91X\x9e=3\x99L}\xb7\xaf\xed\xde\x99\xbcy\xe3\xc6\xdd;\xeb\x8f\x94\x9a\x9fXq[\xc2b\xb8\xed\xb3\xf6Y/\xe8\xc8\xe6y:\x9c\\\xe8\xd7\xe6y\xbe\x01X\x9dB\x10\xaf?x\xf0\xf8\xf2\xf8\xd5Q\x95=\xece1\x9c\x88\x11\x84\xcbD\xd6&lt;\x16\x93\xd1b6\x1a\r\xcak\xbf\xca\xe7\xe6\x00k\xe6\xbeF#&lt;\xc3q\xdb\x12\xb6\xdc\x90FBvm]\xd8\xb1\xdbK\x06*S\xbf\xb6\xc17b\xf5\x9f\xb9\x05X\xd7/w\xdeR\xab\xec\x8d\x06.\x1c\x08r\xecP\xd0-\xf1\x19\\A\x97\xcb\xbci4j\xd6\'n\xdc\x1c\x9e\x9cX\x17\xde\x06\xc1\x8aG\x13`\x1f\x0c\x12\xd2\xc8_\xdc\xf8\xfa\x9a\x81\xba\x94g\xf9z,\xe6oc\t\xd7t\xd7;\xd5\xaa\x18$\x1c]\xa3\xb1r&gt;?ft\xf9\xca\x9c\xcf\x08r\x05-\xa6\xa1\xb1\xb1\x89\xe1\xc9\xc9\xa9\x996\xd5\xbc;\x9a\xa8\xda,\x9ay\xc9|\xf1\xc2.\xc8 \xbd&gt;C]r\x94J\x05\xbc\xe1\x87(\xb6/\xc7\xaew\xdbY\x86nPx\xcc\x81\x85\xe7\xb4\xdd\x07\x95\nw\xb0_\xd6\xcc\xebr\xe6\x9c\xce(q)\xf5\x93\xfa\x89Y\xa1K\xcfK\xe2\x89`5!\xed5\x0c\xe9.\xf4\xad\xee\xd2\xcb\xb3\xd6\xd9\xf3\x8f4\xdd`@.\xe1\xd2\xae\xfbz\'\x86\x83T\x14\x86\x84\xc3\xfb\x07\xdf\x0f~\xdf\x07wZ\xa9\x9c\xa2&gt;\xa3\xd9\x1c7\xba\x82\x86\x99)\xa8\xa7\x82ZVk&lt;\x91H\x1c\x17t:\xf2\xe3\xc5\xbe\x04\xbf\xb4\xf4j\xa9\xe3s\xa1PP\xa5\x93\xed\x0b\xc5\xeeN\x84\x8d\xc5b$\xc9q\x1c\xd8\xd2\x1f\x07\xfb\x07\xa7\xa7\x15\xb0\x10\xdf\xaei\x0c\x9b9\x83;nTN\xff:\x83\xb6\xb1\xc8x\xc2\x16}\xfd\xf6\xe5\xeb\x8b\x7f\x07\x0e\xdf\xf2\xed\x87\x02\xcf\xa4\xd3*\xad\xb6s\xbc{\xc4\x81\xe1Tp\xdbd@\xcb\x02\xcc\xe9\xb7o\xe7\xe7\xc2\x1f\x8c\xf8]\xf3\x9bV\x8f\xdb\xa5\x99\x99}\xe4\xf3\x08m\x9a\xcc&amp;B\xc7\xa2\xfd\xc6`\xe9C\xaa\x10c\xd2j\xb0\xf40\x93\xa9\xfd\x84\xe9\xab\t\x88*\xa7B\xf0\xda\\\xe7\xe7G\x99\xcc\x97/_\xbf\xb8&lt;V\xc3&lt;z\xef\xbe\xd2#4\x9ex\xd6\xb6\xf3\xa1C\xb4\xf5\xb9Y(10\xb4\x8ehouw\x8f\xa8&lt;\xa6!\xd4\x0b\x06"\xaf\x1d\x1f\xcf\xcf}\xff\xf1\xfd;W\x01\xb6\xad\xcc\xd7\xaf/\xdc\x84G\x02X\x1a\x89\xc4\xe5\xd6\xd9\xe2\x89\r\x11\xb1\xfe(\x16J\xaa\xe4\x82J=:\xd7\xfd\xa0\xdf\xe9\x96xP/\x87x\xc3\xe1\x11\xad7\xec\xf5N\x1dp\x95\xd3\xbf..\xca\xfaz\xcc\xef\xac\x84\x0fE}\xb7\xbb\xdc\x16\x9d.\x9b\x8d\xee\x9c\x88\x87\xf5\xb2\xd8,1\xe9dR\xa5\xd6\x8e\x8e$Y\xc2\x81q^\x8es\x941u\x98\x83\xff\xca\xe5\x19\xe5\x98f\xb1Kf4=\xdb6{"\x0e\x18\xc4\\\xee\xb8\x9bLe\xa3!^4\xaaK\x80\xc5\x97\xd2~\x86\xf1\xfbG\xfaU\x18\xeb\x04\x97\xa5\xe7\x1c8\xce\xb2\xb12Z\x0ex\x1c\x01\xcb\xbc\xc5h\x94\xbe\xcf&lt;3zP\x07!\x99\'\xdd\xf1x*\x9bJ\xbd(\x88\xa8\x16](\x95J*\xbfSmW\'\xfd,\xe4\x986\xef\x95\xb3,\xde`\x19\x8c\x08Xq\xbef\t\xbaL=\xb2\xa1!\xa9\xc1\x87FpR\x17\x8f\x93\x80ux\xf8ED\xac\xe71\xfa\x04\xb8\x18\'\xa3v2I\xb5\xdf\xaf\xf6\x8f\x86\xc3j$Rwb\x1c\x8e\xd6\xf0R@g\xec\x91\xf6\x18\x94\x06\xe8\x7f(\x16\xd0Yr:\x92L\xa5\x0em_\x9a\xe2a\xbdu:\xfe}\xc2\x97\x18\x86I\xaaX\xa7\xda\x9fT\x83\x83\xf0j\x07\x11\x16\xe3\xc2c(b\xc5\xf1\x00\x14\x06\x83\xc4*\x93\xd4$&gt;\xc2\xba\x99\xb3\x90q\x08aj3S\x14/\xb7^\xd5\x91\xc2I\xa1\xc10*?\x8b\xa9\x92i\x80S\x8f\xe6GG\xbd\xe52\xc2U\xa6\xa7P\x9fg\x9e\xb0*}&gt;\xab\x01\xa5kV\xab\xdb\x12\'A\xac\xec\'\x9bID\xac\x8e%f\xda\xc9\x0b\xb6\x8b\x05[_\xaf3i\xbf\xb3\xbfS+\x97{\xf3\xfb^\xbd\xfe`zz\xccc\x0c\xf84J\xab\xd5\xa0$p\xab.nq\x93\xd9l6\x95}!\xa6Z\x1d\x1d\xe9i{\x1d\xb0p\xdaYw\x02\x95p)\xdc\xa9\xcd\x87\xf3y\xaf\xfe\xc0;u\x0f\xad@\x0f\xf4y&lt;5\xcaZ\xab\x11dNg\x99w\xc7\xa3\xa9&amp;\xb8\xc3\x0c%"Vk\x19ay\x9e\xa6pg\x9d\xa5\xdbX0\xcd\xe6\xa1\x9e\xea\x0f\xf4?&amp;*\xe8}\x14\x1d\x8b\xa0(AS\x04a%s9\x1d\x98\xe5h*.5\x99E\xc6\xb2#N\xbe\x80\xd7h0\xaa\xaa\xe4^k\x0fL~\x1e\xd2^\xef\xe5\xa6\xb9\n:\x86\xa2\x11\x87\x83\xa8\xd14E\x91\xba\\0\x98\xb3\xa5\x0e\xe3Fi\x8f\xb8A&lt;s\x0c\xd8\x91X\x81\xa7q\xbc\x91N\xa7\xf7\xfe\xb3\x97\x06;\x9d\x87 "`p\xeeU\xee\x95#\x11\x9a\xc6\xf0\x1aP\x91\xb9`\xc8l\xcb~J\x19\x15P3DM\xf9\xb3\x87\x83\x88\x1c\xa9\x17(:\x16+\xa5\xf7\xd2-\x7fzo\xc1\xdf\xaf\xf5"\xde\x830R\x86\x85\x135\x08a\x91\xa2\xb2q\xc0\nE\x0fSC2YO\x8fT\xd4 \x9e\xdd\x1b@\x10\xbb\x9a/\x16\x1a\xb1R\x0b\xf4j\xb5\xf6\xd2\xfe\xa4?\x1c\xce\x87\xa7\xcb\x1c4\xa0\x08\x81\xd1D\x8d*P\x96\xa0%\x17Z\xa9\nT\xb2\x1e\xa9I\\,t@\xbf\xbc\x8c\t\\\xc5"\xd4\xfb\xbd\xb3\x96\x9fI\x86\x110\xceB\xcb\xf6\xa0D\xa4\x86\xd3\x14M\x91T\xd6\x96K\x04W\xa3\x9b}\x02\x16\xecD1s\xebsd\x00\x91/;\xec\xceB!\x9bm\xd6K\xadVr/\xcd@\xd3v\x94\xcb\x1c[\xf3\x05\xc8Z\x1d\xc7\xa9b\xd1F\xda\x12\x89\xd0\xda\x86N*S\xc8d\n\xa9"#b\xf3\xb9\xf4\xf9!"\x97#v;b\xa7\x9b\xa9\x02_j1%\xc6\x9fN\xc7\x1a\xb12\xc6\x12D \x10\xa0h\x02/R\xd9jt-T\xdd\xa9\xeazz@,Y\x9fT!f\xab\xeex\x1dA\x84\xc5!N\x16o6\x0b\xfc\t\x80\xa5\x93L\x0c\xea\x85\xc0\x14\xa0\x88\x1aN\x14\x8b\xa9(h\x95\x88FsfiWWo[-Q\xb1^F\x96\x11;\xd4\x08\xb9\xdd\xc9\xc6\x8a\xc5\xe61\xff\x01\x1aw\x9d\xc6\xe9\x02I\x16a\xffQ\x01\x08a*\x1a\xad\xaeVwl\x89\xcd!Y\xd7mPK\xd1\xd7\x93\xe1E\xc4z\x8b\xe9\xed\x83\x83\x83\xde\x81\x01;\x06C&gt;\x95j\x9e\xf0E\x9e/B\xdb\xcb\x82S\xc8R`\x16\xe0\xa3\xba\xf6\xcf\xb5j"a\xde\x04\xadze\n\x85\xacO\x91)\x89\x98[K\xb1e\xfb\xc0\xe0\xa0\x1cQ\xeb\x1d\x04\x81\xd5\xb2\xc7\xcdc\x88e3\x9a\x8af\xa3Q\x9b-\x05B\xa56v\xd6V\xd7V\xd6\x82\xc1\xa0\xd98\x04T}}}\n\xc5\xb6\x88X\x1d\x97\xea\x0f\x91\xd1\x9b\x90\xf5H\x19\xc1\x80+@6\xffu\xfc\xe9\xf0p\xa7\xba\x01`\x1b;\x1b\x87\x1b\x1b;\xd5\xb5\xd5\xd5\xd0J\x08\xa8\x00K\x06P2\xe9{\xe3\xb6\x88\x93OG\x0736\x90\x1f\x1c\x1c\x95Os\x08\x87\x05j\x11\x0fU\x8cF\xb3\xd5\x8d\x9d\xd5\xb5\xaa\r$\x8a\xae\xae\xae\xae\xad\xfec%\x14\n\x01\x95\x146\xa1P\xb7\xa4R\xc5\xb3\x8fbb\xb5f\x06\xe4r\x00\x93\xcb\xa7\x10\xc4A`\x11\x0fd\xfa\xa7\xff\xd2r\xbe\xb1I\xadw\x1c_\xa4\xdaK&lt;\xb0\x0eOo\x800\xf0\xc2\x01\x02]\xd9\x81r\xe9\xdd\xc2\x1f\xf9\'\xa7\xd2\xb5\xe1\x80\xeda\xb7\xda5\x03n\xe8\x1f\xd1\x1b$j\x11M\xad7\xa6\xe5\x8diZ\xaf7\xa9\x8dn\xa6lidm,i\xaa\xa9\xd3\xc4\xa4\x96;ogf{\xc3^`K,\xaf\xb4\x92\x99&amp;\xb31\xdb\xef\xa1\xfab\xd9rw7\xed\xf3\xa2M \xc0\xe7|\xbf\xbf\xdf\xf7y\x9e\x93s\xce\xc4\x97\x08\x0bD\xbapaa~ahhp\xd03\xe69\xef\xe1Cd\xcd*\xca\x1e\xf2/=\xddN\xac%\x95\x0b\xd7\tq\x92t\xe2\xf0?\xf4u,\x16\x83\x95\xcb\xc4\xf2\xc4\xfc\xfc\xfc]\xb0rb\xfe\xc2\xd0P\xdf\xd8\xa0\xc7s\xc3\xd3\x04b\t\xaa\xb8\n\x94[\xfc\x07\xdb\x8au\xcb\xa2\x83F\x9c4\x1b\x9c\xb8\xd3\xe5\x12\x06\x87\xcf\xa9\x0e}~u\xb0\xef\xf8_\x8e\x1f\x7f06vu\xbe\xef\xce\xd0\xe0\xd8%\x80\xba\xc1o\xe2B\x0b\x8a\x91\x8b\xdc\xa6\xa6\xedU\xeb\xba\xcaMNBy\x19\x0c\xe4C\x10\xac#\x18\x0c\x0e\xc7\x8e\x8c]&lt;\xeeA\x97:\x1c\xa9\xf3\x9c\x1f\x1b\xf3\x80\x83\x07&lt;\xb0[\xe4*\x90\x85UUb\xe0\xda^\xac{\xc7\xdc\xa4\xc6&lt;I\x9a\xf5z\xa7\x93\xd4\xe0\xf1P&lt;\x14&lt;\xd70v#t\xf9r0\x14&lt;\x16\xfb\xfc\xf0\x11p\x8f\xcf\xf7\x00U\x19\x0b\x82\xab\x1aj~{K\xfe\xe6gn\xbc\xacUM\xcbC\x9d\x0e\xef\x10\xc6\xe3\xe3\x97C\xb1\xdd\xc1\x1eY\x0fl;d\xc1p\xf8\xd0\x01&gt;\x9f\x0f\xbbE.\x97\x0f\x16\x8a\xa3\xf6\xea*\x01\xdf\xf3`[\xb1F?\x8b\x93\xe6\x9a\x9a\x1a\xd2\xb0\xef\xa1\x0e\xfaQ\xa3\x1a\x0e\x87z\xc6\xc75\xb2\xbd0\xae\xed\xdd+\x0b\xc6\x1a\x9a`_\rd\xa0\x96XlW\xda\xc5\n\x01\x97\xff\xc7\xed:5RQ1\xfa\xe8ne\x8c$\'k\xccf\x03\xd9\x02\xa9J\xba\xdc\xa1\xe1PG\x87l\xaf\xa6\xe7w\xd7N_\xbb&amp;\xbb6\x1e\n\x9d\xaa\x13\x80&gt;|~\xd3\xec\xec\xdf\xa3@\x85\xee\xc4\xe06}yb[\xce\xba\xdd\\{y%\x1b\xa1c\xb8\x107\x98\r5\x0f\xbf1\x98\x9d:\x9dK\x18\x86\xe5\xaaP\xa3A{\xec_\xcbd{;B\xc3\xbb\xeb\xb8\x10T\xc8EE4\x1a\x15\x8b\xab\x11\xd6\x81\xbe\x17\xb7\xee\xbd\xefS\x94\x15\xf7\xd6^~\x9a_\xdft\xf8w\x938i0\xeb[\xa0\xb6\xf4z\x12w\xbb\xe2\xcd0M"\x0b\x01\xeb4`\r\xc7\xaa\x11\x14\xc2RT\x03U\xd4^^5\xf3\xfb\x1c\xed\x13K\xef\xf5\xe1\x0b7o=Z\xee\xd2\x16\xd9\xa6\xec4s\xc4\x89\x9b\xcd\x93\x86\x16\xe0\xfaDo\xc0]V\x9d\xdb-\x04\x13\xcb`\xa7e\xc2\xa0\xa4\xa1N\x80\x94\x82\x02\x13\x88\xa3r\xb9\x1d\x16\\h\xeb3\xb6K\xa4\xdd\x9cxv\xeb=)V1\xba\xb4|\xb42\xa2]\xa4\x92%\x87\x9f9\xef\xec0k\x0c0~\xb2\xef#\xbd\x81\xd4Y]\xba\xb8P#\x93u\xf4\xc0\x1fY&lt;\xdc\xdc&amp;\xb1\xa3\xf8\xe4\xf2!\xde\x01\xab5Z\x8d\xd4CX\x0c\x9d/m.\xbc\\\x1a}\xe7"\x87X\x7f\xf5\xe4\xd3B6\x92]\xa7\x923\x80E\xf7\xfd\xa2\xe3c3PA;\xd6\xb7\x18H\\\x071\x81wh\x84\x1d\xa1qYOX\x15VY\x94\xd5\x02\xa0\x02.A\x15\x88\xd5\n\x01Q\x87N.=`\x18Qa1],l\xde\xfd\xdb\xbbyYqoi\xe2\xe4\x0f\xb3\xa5\xa9\x8d\r51cd\x17A\xad\x1f\xbb\xa1\xbe\xa1\r\r5\xf5z\xc3\x1e\xa7\xce\xa9s\xb9p\r\x0c\xe1\xb80\x1e\x0c\xab\x1a%\x12\xa5\x18&lt;\xe4V\x81\x87\xadr\xb9Rn\x17\xd7A\xa5\t\x8e\x8b\x18Q6\x9d\xee\xef/\xe6\xf3G\x97\xdf\xe1&amp;\xf9\xeb\xaf\x16v\x89"\x05u\nQ\xd9\x8cF[\xd1\xefg\x98_\x92\xb8\xc1\xa9\xaf\xaf\xaf\xd9\xa3\xd7\xef\xab\xb7\xba`\xca\x8e\xbb W\xf1x&lt;\x1c\x0e\xb7I$m \x17p\xcc*\xa2\xad\xad\x88\x0b\x85\x05x\xf8#\x11-\xca\xf6\x03V\x7f\x7f\xad7\x9f\x9f\xf8\xff&amp;\xa3\x8a\xb5\xe5\x1d\x11-\x1d)R@\xc5\xa2l\x9dIJZrL\x8b\xe8\xd5\x98Y\xf31\xa9o1\xec\xd1;\xf5\xfb&amp;\xddV\xe0\x022]\xdc\xeannll\xb4\xc8\xe5_\xa0u\xc3\xef\x15Jy\xab\xfc\x8c&lt;\x8a2\x1eR~\xa7V$\x12\x15\xfa\x17\x11V\xa9?\x9d\xde\xc8&gt;y\xfa?^jSq\xf3\xfa\xb3\xdbL\x84v\xd0\xd9\x8c1\xb1\xb21Bq\xa8\x01b\x86Z\xcfN;"t\xfb\xd7$Y\xe34|\xb8g\x9f\xfe\x93\x16\xbd\xd3\x85\xc2\x1e\xc7\xe3\xcda\x90\xab9\xdc\xd8\xd6\xd6*V\xcc\xfeY\x11=#\x07*\xb9\xb2\xda^\xc7\x174}\x80\xa8\xb4\x85t\x19\x0b\xacLgF\xf2\xd9\x85g\xd7\xbf?\xd9\x89\xd1\xa7/\xbbDZ\xc6\xc1dKl\xaa{e\xc3\xcbfs:\x8d\x94q\xc6\x94\x9f\x9e\x16\x01\xd7\xd9\x0eX8\xd7\xbc\xb9\x9f\xa7\\\xf5\xf1\xb8\xd0\x1d\x0e\xc7\xdd\x07\x9b\x9b-mJ\xc5\xec\xac\xa2*\xdaz\xa6|\xa7\x16\xb2\xf4\xd2\x07"\x84%\xcag\xd2\xb5e\xac\xf4\xe2b\xc6\xb4\x98\xcf^y\xf1\xed\xe8\xf7+\xff\xeb\x8f&amp;\xdai\x91\x03\x94*\xaa\x93\xec\xee\xdc\xc6\n\x8f\xb0\x11\x9d\x14E\xcc\xcd\x95\x1c\xab~QD4=\x9a\xa5,\xb3\x00\x00\x06\x96IDAT\x14\xac1\x1b\xf4--Pa\xdf\xe0$d=0\xa9\xc2\xe1 \xb8\xa8:\xd5 @\x8b,\xb1\\.\x01(q\x83\xbd\xae\xe9A\xe5\x16U6m\xda\xc2\x02\xa8Lf\x1dc\x01\xd8\xe6\xc4\xa3\xff\xde\x97\'\xd6^\xdd^\xa5i\x80b6\xd7\x93\xf79@\xb51"\xe5\xf8\x8c\x14\x9bc\x0bPD\xde\x8f\xb8\xb4\xcc\xc9_\x05\'\xebA-}\x8b\x13\x16\xd0\xd0\x8c\xd6\x83 Ts\xa3\xaa\xcd"\xf9\xc2\x0e\x93\xf3l\xb5\xc5bi\x93\xdb\xeb\xaa\xeb.\xfd\x06\x82\xb4\x8c\xb5i\x02\xacZ\x84\x95\xc9$L&amp;\x13\xa6f-\x96\x03\xe3\xbb3\xf6\xe6\xd3\xbf\x1e\xf5\xd3\x0e\x7f\x19j\xe6\xbe\x91\x9d\xf0\x82\x856\xb6\x8f\xc3\xf1I\tv\xc07\x10\xc8N\xaf:\x80K\xe4?y\xf5\x18\xfe\xf3\x16\x03$\x05Z&gt;\xeb\\\xd6\xfd\xfb\xdd\xd6\xaf\x00\xad\xadM\tb)$\x16T\xfe\xf6*\xcf\xc5\x9d\x00\x85\xa8\xe8B\xda\x94X|\x83\x05T\x18\x8b\xc5S\xabY\x99R\xb1\xb8\xf0b\xed;\xa0&amp;\xda\x1d\xcc[(\xa31\xc9\xc6\xbc\xb9\x95\x15L\xea\xe3\xf8\xe68\x14!\xed\x9d#\x06\xe6\x80\x0b\xf4\x82\x1e\x9dn\xef;\xac\xfb\x08\x92\xde\xa9\x13"\x1b\xadn\x97\x15]Af\x91\xc34\x88\xb0`H\x9a.V2\xda\x08\xa2b\x98l\x7fw\xa2{\n\xc9U\xc6\xc2X&lt;\x9e:\xd0\xab\xe6a\x99t\xba\xb4\xf8z\xed?[\xb9t\xb7\xb2,\x94\x88)\xb2(\x8a2\x1a\xa5\xac\xda\\nc\x8a\x03\xee\xcd\x81XR)\xc0%A/\xff\xea4\r\xc7\xaf\xa5\xfd\xd3]W\x87\xcd\x1f\x9aq!\x04\xbdk\xbf\xd5\xeav\x1fl\x1c\xb6\xb4*%\xe2\xd9*\xa5\xa5Yu\xf8N%\x83\x0e\x01\x94\x82RM\'\x00\x0b\xb4\x02\xact\x06\xc4\xc2X\xea^\x9b\xadW\xad\xe6\xadC\xad\xa5\x01\xec\xdf\xad\xfc\xf6\x89(\x82\xa0\xb4\x85\x92\xad\x93b\x83X\x84zj%\xb7\x91\x0b\xf8l\xbd\x98\x8f\x8d\xb08s\xbe$\xf1\x9c\xbdA\xaf\xae:\xb6\xc0\x1c~\x7f\xd7\xd9\x9e?\xfd\x0c\xd7Y\x9b\xf7\x1fDT\x8d*\xb9D\t\xf3\x8d\xe0\xd4\xb9\xf3W\xfc"m\x19\x8aa\x1ct!\x81uw\'F@+$W\xc6\x84!\xb9lp\xcc\xc0\xd5\xcb\xca,\xae\x9b\xd2\xe9\xd7\xffRc\'F\x97\x9e0\x11(s\xbaP4\x11\x9d\x04\x87C\x18\xef\x13\x01\xa0\xca\xadt\x07\x02\x01,\xc0a\xb3\x11V @$\xa5\x8f\x93^\x06\x04\xf3\xd3\x90C\x00\xe6\xf0\xb7_8{,\xae\xdbo\x05\x1f\xc3\xcd\x8d\xbfm\x94(\x1b&lt;\x97\xfa\xba*\xe9-(\x1a\xd5\x05S\x9c\xe3\x81X\xa0\x16\x1a\xfd\x90\x0e,,\x85\xa9m\xf0\xc5\x1c\x9f\x1a\x86\t:\xd34\x02\x8a\xbd}\xa2\xcc\xe8\xda\xb3\xdb~\xf80S(flT\x12\xa0\xd8\xe0 e\xeb\xce\xe5jW\xbc\x18\x06Tl\x18R\xa8\xf9\xde\x00\x1b\x82\xe2\xf1@*\x0f`@\x06\x8eC\xd9@\xe3\xee\xb82\xf8\x87C\xa7N\xc5\x0e5\xfc\xf4\xfc`\xdf\x9d\x1d\x95\x0e\x06\xbd\x05P\xc0\xe4w8\xf2\xdd&gt;V*\x91H\xa4\xdeb%L,V*\xc5\xb3\xc1\xd7Jm\xbd\x01\xe0\xe2\x01\x98\t\x81=\x1d-K\xb6\xdc\xe5\x101\xbb\x80\xa9WJI\xd9\x9c\xb7T\x89\xdc\x8a\xd7\x9b\x1b\xe9\x9e\x9bCZ!\xb5\x08\xb6/`3vR\xc9\x81\xe7\xc4"\x80M\xaf\xae\xae\x82f\x91H\xb9\xa4\x1d\xfe\xca\x1d\xe8\x99e;\x11\x11\x12R\xbb%\x14@\x15JX\x80e2\xa5\xcaX\xde\xda)0\x11\xb0x \x17\xfc\xe4\xcc\x0c\xe4O/\x12\x8c\xb5\x05\xb6\xfe\xfa\x1f(\xfbi:\xbbYZWK\tB\xcaAPRD\xc51\xe5Vr^o\xed\xc8\xc8\x1b*6\x01\xef\xfb\x02&gt;\xa2\xd3\x98\xec\x1cx\xfe\x9c\xc8\x14\x0b\x0e\x90\x0c\xc8PU\xbf\x1d \x10\xa2Dy\xc0 &amp;\xb0\xafPL\x04x\x18\x86\xa5L\xa9T*\x01X#\xb5\xde\xa9\xee\x04\xc6ca\x18\x8f\r\xcd\x05\\P`\xd0\x96,\xcc\xb4nBnr\x9e\xad\xfd _Z\xef\xdd\xfa\xe5-U\x92\xc6\xfb(\x1a\xa0\xb0\xbc\xf0\xf1T\x80\x83^\xe6@\xc9\x97\xb1\xa4\xc6Nc\xe7\xc0\xe3\xe7\xffl\xb2\x0cu\x1c\x87\xa1(Z)(RL\xfc\tQP\xa4\x82\xe5)\x89\x16\x04\xb7\x06]nd\xf9\x0f"\x05-\x8a\x82\xfd\r\xc6\x91:*2\x0b*.)\xa9\xaa\x01\xcb\xba\x9a?\xd8{_:\xb3\xf3\x94\xa6\xaa\x944\xc7\xf7\xde\xf7\x9c\xe7s\xca&gt;\xee\x97\xe3Ojv:\xee\x7f|r\xad"\x81\xe8\xf4\x8b\xef\x1b\x84\xb2$@a\x80\nV\x80b\x9ec+\xabMI.\x82\xd5\x05\xb82^\xb3\xfb\xfb\xf6\x96m\xd0\xa4m\xab\xa4H\xd5\xe0\xb9\xb9\xdeB\xab\xdba\x8bE\xa9\x15\xb9\xa4\x9amo\xf2\xc997\x8eW\x82\xb9|\x072\xb4\xe3\t\x05]X\xe49\xad\xbf\xb1\xa7\xde?v}o\xb5`a"\xc4\x02X\x87@\'\x83\x8fY\x91\xe1\xd9\xe0:\xe3\r3o5:3\xfb\x02\xdb\xa8\xbe\xefM\xbb&gt;\x9cT\x8b\xab\xfa\xf9\x01,\xdc\x1a\x86V\x90\xf0\x81\x89\x15B\xa0:G.\xc1z&gt;\xafc\xd7c\xfb\xb8\xec\xf7\x9c\x15\xff\x81\xf6\xfb\xe3\xe5\xfd\xbe\x1d\x12\xc6xmkbE\x11L\x88\xe2L\x1f\xc0\x85\xc1\x85\xd0\x9c\x89\x85\x01\x96Q?\x82\x91l\x93\xb7\xc6\xda\x15\xac,\xa7\xa6\x19\xbb6\x08\xd5\x1c\x82\xb7/*F\x0b\xd93\xa6\xad\xe0\xe1\xcauE\xc1\xce\xab\xabR8\xdc\xdf/\x12sx\x08\xa0?\xdb\x90\x0c\xc6\xb0l/\xe8\xb2L\\\xc4Y\xd4*\xfc\x81Fx_\xd4}\xaf\xd0\x8b\x18\x12\xc9\xc0FriA\x03\x164\xb05\xc1Z\x85\xb4\x8f\x8d\xf2\x0f4!\xec\xf7A,\xfc\xc2\x82Z\xc6T\x13M\x94Z\x9c[\x9a\x85\x87\xc3\\1\xba@\xb3\xedv\xbaW\xd54!0\n1\xc6\x06\xa3m-.f)K+V, \x17w\xa2\x10\n\x04\x08/\x01\xad\xb5/\xb9\x180\x92m0h\xd1\xa0\xda\xc2g55\xce\x95\xc3\xe3\x81\xd9\x02\xad\x8279[S\xb2Uu\xa2\x96\xc1\xf8Xm\x1c\x990\xa9\x95qq\xcd\xd2\xa0\x88T\x9e\xd7y\x94@\x03\xbd\xc0\x86\'%\x9c\x87\x99ji\xca\x15&lt;\xd6=\xc7\x04\xab\xacMP\x0b\x10 B?\xe2r\r\xb5\x80e\xb9*\x83\xe0\x8c\xe7\xe1v\xf8\xcd\x04\xcc\xf3\x9c\xf2\xfc\x95xf\xab\xab\xe07\xaei\xdcK/\x80 \x8a\xdf\x8aH\x90\t\x9d\x85\xa3\xc4\xdf\xeaB6dM\xbd(\\"\xd6\\\xe8\xb8\x95t\x01\xcb\' \xc5!\x16IF\x97D\x8b\xb7\x08\x96\xe1\xc2to\xba\xb1\x89\xdb\x80{o\x18z\xb3W\xb9\xfa\x86U\t\x16\'\x08\xb9\xf0\x812\xdd\xb4\x16e\x82\x9b\xe0\xfa\x04c`\x80\x95\t\x96\xc8\x85\xef\x14g\x0c\xad\xa8\xc5\xc50\x0cX\xbb\xd7e\xa5ld\xe1R0\xed\n\xe6\xf1\x1f\x15\xaf9\x8d*m\x98u\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -514,6 +560,14 @@
           <t>Eduardo Coudet</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x00&gt;tEXtComment\x00xr:d:DAEewil2SDw:3080,j:6710763804814539589,t:23082100*\xd8y\x9e\x00\x00\x04\xe5iTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n        &lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n        &lt;dc:title&gt;\n        &lt;rdf:Alt&gt;\n        &lt;rdf:li xml:lang=\'x-default\'&gt;Elabora\xc3\xa7\xc3\xa3o de fotos - 8&lt;/rdf:li&gt;\n        &lt;/rdf:Alt&gt;\n        &lt;/dc:title&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n        &lt;Attrib:Ads&gt;\n        &lt;rdf:Seq&gt;\n        &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n        &lt;Attrib:Created&gt;2023-08-21&lt;/Attrib:Created&gt;\n        &lt;Attrib:ExtId&gt;9ef58779-1aa6-45f1-8de7-294d0770f4be&lt;/Attrib:ExtId&gt;\n        &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n        &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n        &lt;/rdf:li&gt;\n        &lt;/rdf:Seq&gt;\n        &lt;/Attrib:Ads&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n        &lt;pdf:Author&gt;Jo\xc3\xa3o Izzo&lt;/pdf:Author&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n        &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n        &lt;/rdf:Description&gt;\n        &lt;/rdf:RDF&gt;\n        &lt;/x:xmpmeta&gt;\xb0k-\xb3\x00\x00\x03\x00PLTE\xff\xff\xff\xff\xfe\xfe\xdb\xde\xe3\xd8\xdb\xe0\xdf\xe3\xe7\xe1\xe3\xe8\xd4\xd7\xdd\xde\xe1\xe6\xdd\xe0\xe5\xdc\xdf\xe4\xd7\xda\xdf\xda\xdd\xe2\xd6\xd9\xdd\x1c\x1b\x17\xd2\xd6\xdbgRF\xd1\xd4\xd9\x15\x16\x13\xd9\xdc\xe2bPD\x19\x18\x14\xcc\xce\xd2\xcf\xd3\xd7\xcd\xd0\xd4\xe1\xe2\xe6 \x1e\x19\xca\xcc\xd0\x18\x1a\x1d\xa7xX\' \x1b\x9brY\x12\x12\x11\x97oU\x93mT\xfd\xfd\xfd\xb0\x83j\xe2\xe5\xea]MC\x9bv_\xa8zb_K?\x8fgMnTF\xcb\xcf\xd5\x95jP\xf9\xf9\xf9\xe4\xe7\xeb\xac}f\xbc\x88q\xc5\x93|ZI&gt;\x90kP\xb9\x80hdC1R&lt;0\x9fu\\\xe6\xea\xee\xc5\x8fylQA\x8afLdL?\xb4}gB92\xa9|[\x15\x17\x19\xae\x81i\xa0x_\x9alQVC8\xc1\x8cu\xd5\xd9\xe2w]O\xcd\xd1\xd7\x9dnVwXG\xbb\x83mrZMqVHH=6|ZHK9/bG9SD;\xf6\xf5\xf5\xa0qY\xac}]\x97s_\xb3\x88o\xdb\xdf\xe6\x96q[\x8caGVH@\xa3vVC."]F80\'"U?3\x8ahT\x87`G\x91o[\x82X@"!\x1f\x9epQ\xaas_- \x19\x84cL\xc6\xca\xcf\x85fT\xa7~eiM?\xbc\x8cu\xa5x^\xc9\xcc\xd2xRBpM?+$\x1fiH8\x1c\x1d\x1e\x80`K\x91bR\xb7\x87p \x19\x14oL6^;)\xc7\x96\x80{]MLC=\xbe\xc1\xc6\xa4u]\xafwb\xb6\x8at\xb5\x83l|aQ\xc1\x93~\xc1\x90y\xaf\x82aJ4)=1(\x89aQ\xa1sT\x82`Q\x9ffT0.*:+#(\x1c\x16|W@\xbe\x8fyuM9\x84YFY&lt;*P?6lWKiG2\xc3\xc7\xcb\xb2\xb0\xb15$\x1c\xd5\xd7\xdaC4,\xa3{b\x9ahY\xcd\xd2\xda\x96gL\xd0\xd5\xde\xc7\xc8\xcc\xa7pV\x8elW\xc4\xc5\xc8\xc0\x8bo\xbd\x86l\x82^E\xea\xec\xefuUC^A,\x9aaP\xa6n]6/)]&gt;1\x89ZLq_U\x88\\BQ7*\xa4jX\xf1\xf0\xf0;5/\xbc\x92\x81\xb7\x8d{\x9d\x9a\x99\\B3\x91cI\xbc\xbd\xbfwS;\x96\\L\xea\xe8\xe8TLG|{|gWN\x95gW\xd3\xd3\xd4~U;|cW\x9dzfC?;c?,V7\'&lt;\'\x1d\xb4\x87i\xc4\xc1\xc1\xab\xa9\xaa}TG\x89j\\\xba\xb8\xb9\x8bL=\x8d\x8a\x88\xa2\xa1\xa2h]V\xac\x84t\x91hT&amp;((O2%qjf\x7fJ:\xb8z_GHH\xc5\x99\x84\x89TDpF&lt;\xcc\xcb\xca\xdd\xdd\xdf\xb5\xb9\xbd998|h]^TM\x90XG\x9e\x92\x89\x95\x93\x93\x94\x85{\x9chKpE2\x88ulUTSgdbzB1\xa4\x81m^^_I*\x1d\xda\xda\xdb~nf\xac\xa2\x9a\xb9\xac\x9d\xd5\xc1\xbc\xaa\x86i\x8b}u\xc3\xa1\x99\xe4\xd6\xd3\xe9\xdd\xdb\xc9\xb4\xac\xb8\x1c\xf7\xd6\x00\x00 \x00IDATx\xda\xc4\x98\xedOZi\x1a\x87\xe5\x0f \x13\x12&gt;\xf4\xa4=\xc8K"b @-\x12\xb4\x92Rj6\xe8\x8c\xc5\xc2HJ\x96\x1eKa\x07S\x07\x82`\x0b\x8cm\x10\n\x0b\xc69\xbch\x8d\x91\xb5\x13\x93\x99\xe9\xaa\xdb\xc1F"h\xad\xb1d\x9d\x91\xd5\xb4ic\xe3[\xa2\x9b6&amp;\x1b\xbfh\xea\xfa}\xef\xe7\xa8\xb3\xfb}\xc1\xde1G^L\xce\xe5\xf5\xbb\x9f\xfb&lt;\xe7\x94\x95\xfd\xdf\xc5\xa5\x89\xb8\xba\xa3\x9f\x17?\x9e[\x98\xe6\x96\x95\xd1h\xb4\xb2\xcf\\\xdc\xe9\xe9\xa3\xd7of\xf7fW\xf7w\xb7\x0f\x0f\x0e\xf2{\xc3G\xd3:\xee\xe7\xe5\xe2r\x17fW\x0f\xb6I\xeby\xab\xb5\xab\x8bN\xef\xea\xb2Z\xc9\xfd\xfc\xec\x87\xe9\xcf(\x8c&amp;ZX\xdc\xdb\xdd\xb0\xd2\xaft\x01\xd3\x15\x06\x83q\xe5\xfcy\x00\xb3n\x14\xf2?\x8b\xca&gt;\x13\x19Mtn\xf6\x90\xa4\xd31\xc4\x83\xa0\xca\xcb\x19W\xca\xcb\x99t\x0c\xc3\xac\xbb\xf9\x0f:\xda\xe7Q\xf5r\xb5`e\x963\x98\x88\x07A\x95\x1f\xfff\xd0\xbb\x80\x8c\xbe={Nt\xe6P\xb4\xe9\xe1\xad\xed\x8d.:\x85T~Z\xc8\x19\x80\xd2\x99t\xf8!\xb7&gt;\x88\xceX\x98hav{c\x03\xa3_\xa1\x14\xfd\x8eE\xc9b2\x10\x14\x94\xf5\xf0\x9d\x8e{\x96T\xba\x0f\xf9l\x17\x9d\xc9&lt;M\xee\xbfL\xf0\x92\xc9D\xb2\x10\x98\xb5\xf0~\xe1\xec|\xd1to\xb6\xadp\xe6\x93\x86b0\x8e_@~L\xf4\x19\x83\tP\xf0=\xea|r\xeb/g5\xc3\xb8\xe3{\xbb\x88\xea\x04\x8b\x81\xa4\x9d\n\xc30J\x13\x84\x88\xd11+f\xc5\x89\x83\xc53i0\x1a\xf7\xdc*i\xc5N\xc4PXt\x8a\x8bq\xc2\x05\xd9a\x08\x8c\x89Y\xad\x18\x86\xbb\xce\x86\x8b6\xbe\xba\x81Y\xe9\xcc\xdfm1\x99T\x9c\'\x98\x00\x894\xfd/\xd7\xfe;\xd1\x19\xf4\xd5\xec.\x9d\x8a\x8ay\xdaI\xccc\xc4\xe3w\x0c4M\xa9\x8eG\x9fS\\xaXW\xf2\xc90\\\xc0\xa8\xa9\xe4\x85\x02\x12\xa6\xd7\x0b/\xe1\xe8\xc5\xe8\xa7K\x10d\x01$\x1d\xa3\x84\xe1\x00VxS\xe2\x1cE/\xb7]t\xa6\x172\xf2z\xe3\xc0\x12\x8f\xdbR6\x1b\x1cm8\x8e\xa3\xe80\xaa\xed\xd0\xe8\x02i\x14\x98\x0b\xc7\xf0W\x1fJ:\xbf\xb8\x8b\xfbV+\x9c\xd0\x0b\x8b\x1f\xb7\xd9l\xa9X,f2EL\xb6T\nq\x81\x19\x0c\xa3F\xd6q\x94\xa8\xc30\xe0\xc2\x89\xad\x8f%\xd4E[\xc8\xa3y\x84\xfe\x7f\x1cHR\xa6LMf\xf3\xf1r&amp;\xb2\x92ZYI!.d\x10\xf2\x04$\xd4~\x88\xd2\x0bMO\xb8\xd2\xab\xe3\xa5\xe3\x9a\x86v\x07*\xc2\x05\xa6R+&amp;\xd3c\xd9\xd0\x90\xcc\xed\x1b\x9a|l\x82w1\x1b$\x1aGE\xd9\xc4(}\xc8 \xeer\x11\x85\xf7%k{\xdd0\x1a\xeex,\x8a\xe3\xa9T\xcc\x94\xd9\x1c\x9a\x9f\xefO\xcc\',\xfdnY\xc6\x14\xd9\x84,A\x1a\xe4\t\x85\x8c\xa2\\]\xc7\\\x04\xb9=\\\xa21!z\xbd\x0f\xf3\nwE\xa3q\x1b\xb4T\xa6\xe5\x1f\t\x8b\xe5\xd7)\xe3\x94y\xc0\xe7t/o&gt;\xce\x98\x10\x1b\xd4J\xcaF\xb8P\xf3\xe1q\x04\xe6\x85\x03A\x1c\x1e\x95\xa6\xed\x17\xf2\xa4\x95\x0e\'\x18\x89\xc6S\x11SD\xd69d6N\t4j\xb5ZhN$:\'\x97\x97#\xa6\xcc$\xaa\x8c\t\xac\xc1\xfa\xc4qo\x1c\'\x08&lt;\x0e)\x92\xbb\xa5\x89Q\xf4n{\xc3\x8a\x11DTk\xc2W2\xa6e\xdf|\x7f\x9dZ\xa8\xd6\xff\xf1\xc7\x1f/h\x04u\x03\xfd\xb2\xef\x1eonN\xcad\xeeN\xe7\xd0\xf2\xbf#&amp;\x14f\x1c\xf5\x95\x0b\x0e."\xbd\xf5\xb14\xab\x90\xb4Z]\xd9\x98\xb6&amp;\xe22e"\xb2y\xcb\x80\xd0\xaf\xd7\xfb\xfd\x17.|-v\xfcI=:0\xefsO\xca\x9c\xce\xf9\xc4X\xddXg\x06\xb8R\x14\x13\xb4=\xc2"\x1e\x0e\x97 E\xee\xd1!\t\xff\xf2H\xb4\xcd=I@\xbb\xfb\x06\x8c\xf7G\x81\x8a\xcf\x17\x7f\xdd\x13\x0c\xfe\xf9\x9b\x9eo\xf4\xea\xfb\x03N\x8b\xd1l\x1e\x13p8\xf7\xdc\x90%L\xb38\xcc\x0c\x0c\x92\x84\x14\xf3\x0b%\x99\xa4$I\x8eDG^L\xb8c\x91\xccr\xbfejT\xad\xd6\xf8\xc5b\xd5\xa5\xfa&amp;\x89]\xd2\xd4\x14\x04\xb2\xfbsF\xa1\x90-`?y\xc2j\xef\x94m\xae\xd8\x10\x96\x17a\x11\xd9\xfd\x97\xc5_\x8c\xa27\x05\x92L+\xa3#-c\x9d\xa6\xcc\xf2d\xbf\xc5\xa8v\x80-q\xd0\xf3\xf4\xaf\x92p2\xd9 \x91H.\xd5\xfb!U\x07\xdf\xaf\xd6wt\\\x15&amp;\xfae\x9b\xb0,\xe3\x88\xcb\xe5"wW\x8b\xbeW\xa5\xe9\xf2$\x85\xa5\xed4;#\x19\xe8!\xa3F\xc3\x87\x04\xc5A\x89\xfd\xa9$\x1c\x92J\xc3\r\r\r\xf6 \xbf\'\xa8r\x88\xc5r(\xcd\xdcT\xc2\'\xcb\xc0&lt;\x8b\xc3\x8c\xb0\x91\xd9\xc3\xe2_\x82\xc6\xb7\x00+\xaa\x8d\xd68\xe7\x125\x11\xd9P\xc2,\xd4\xf3\xc5\xaa\xa0\xdd\x8e&lt;%\x93a\x84\x15\x0e7H\xe0\x93 O\xc5\x13_\x95\xeb5\xa3FK\xbflr\xd2d\x03_8\x91\xde~W\xe4\x9d\x04\x8d\xf6q?\x9d\xce*\x07#/\x12su-0\xdf\xc7\x8csz\xbe\xca\x13H\x86\xc3\xc9\xa7O\x11\x964\x1c\x96vK\xa5\xc9P\xd2n\xf7\xf0\xa0\xf8z\xb5\xd0hI\xf8|\x7f3\x81.\x1bAf\xf3\xe3\xc5\xbe/|\xfd\x10Q\rj[\xc6\xe6\x04\x9d\x93&gt;\x8bQ8\xea\x17\xf3\x0cv\x00\x02M\x88\x8a\xc2\xea\x96\x86Bv\x89\x87\xc2\x12;4\xa3sH\x18p\xc1\xf5\x92 \xc9\xad\x85"?\x01\xe0\xbe\xdf\xcd*\x9b\x07kjj\xebFG\xe7\xddC\t\x81F\xcf\xe7\xf1\x02I\xc0\n)\xc2\x94(t\xd8\x91\x86\xc2 \x0b\xb8Tb\xbe\xc3\xaf\x81\x81k\xfc5\xe1l\x89\xd8\x00+\xbd\xbfX\\,\x9anU\tX\xd7\x06\xdb&amp;\x04B\xb5\xd9\xd9\x9f\x10\xfa\x1d&lt;\x83!\x90\x0c\xedHQt\xe8\xa0P(\xba\xbbC\xa1P\x18RL\x06&lt;*\xb1\\\xa3Qk4\xa3S\x961\xa7l\xc5\x96&amp;\xc8\xc2\xcb\xe2bq\x17\x0e([m\xb7\xae\x0b\x84,\xe1\xc0\x80Y\xe8\x17\x1b\x02\xf6d(\xb4\xb3\xb3\xd3\r\xd9\xa1\xfc\x80\x0b\x01"\xb0\x90\xdd\xc0S\xf1\xfd\x1a\x8d^\xa3\x9e3\x9b\xaf\xd7j\xd1D%W\x8b;\xb9hG\x87\xbb\x85\xe6\xe6\xc1k\x97\xc7\xaa\xe1L\x02\x81P\xc3\xe7y\x02\x81d\x0e\xb0\xba\xa5\r\n\x84\xa5P4\x1c\xbf\x80\x82\xbe7\xa8Tb\x87^\xa3\xd1\x08\x05u\xe6\x89\x171"\x9d&amp;\x0f\xa6\x8b\xdbZ\xaf_\x15\x94`\xab\xb2\xb6]\x88\x04h\xe4|\xe8wd\x8b\x92EYRP%\rQm\x1f\xca\x05\x0c&lt;\xe4\x0b\xfe\x98-\x10\xd4M\xbc\x18I\x03\xd6\xab\xa3\xe2\xb6\xd6\xfbB\x16\xf5V\xed\xf5:6\x8b\xba\x12\xf2UA\xa0\xca\xe5vNC\x94*\xc2\n\x90\x15\x0eQ\x95K\x1ec\xf1\xc1\x17`\t\xc6\xdc\xdah4\x9d\xde-\xea\xe5\x9a6\x9e\xcff\xb3\xcd7nM\xdc\xabf\xb1\xf5\x0e4\xde\r\x1eO \x97\xa3l!.0\x06T\n\x80\xeb\xde\xd9\t\xe5r\xb9\x99\x80\xc1\xc0\x13\xf3\xf9~9[(\x10\xb4O\xb4E\xb3\xe0k\xb5\x98\x0f\xe3h\x1f\x0f\xb2J\xe5\x8d\xca\xda\x07\xed\x1c\x96\x90\xe5p\xa8`\x15\xda\x93333p~$\x07a5H\xd1J\xb4{\xe0-\xfa\x06\xb0\x02\x01\x83\x8a\xef\x90\xb38\xd5\xd5u\xed\xdfj\xb3i\x92\xccO\x17\x11\x0b\xb6\x0f\x10\xe1\x8d\xca\xc6\xdb\x1c\x16\x8b\xcd\xf2;\xc4\x81\xc0L27\x93\xa3\xb8rI{2\xachR\xc0\xe4\x92\x86&lt;\xc1d\xd2NQA\x01\x18\xafC\xcebWW\x0b\x04\xf7*\x9b\x81\xeb\xa0\x98\x9b\x1b\xb8kE\xb6j\xefq\xd8,9\x0bV\x97\xc3@\xf1\x1cc\xcd\xccx\x02\xf6\x86\x1e)\x12\x96\x14\x8b=\x1e\xc3\xda\xdaL`m-\x00\xbf\xd7x\x1dW\xd9l\xa3y]P\xd7X\xa9L\xa7\xf7\x8bx\xb5\xa6\x89\xa0\xe3\x95\xca\x8b\x8d\xeb,(\xd8\x1a\xa8;\x023\'\xb5\xb6\xf6i\xe9I\x878X\xffKR*\x91\x84\x02~9\x9f\xdf\xb1\xb4\xf4\tUGEkkk\x85\x9c\xcd\x16\xd4q8\x82\xf6\xaa\xe6t\xfa\xd5b\x11\x9fw\xe9f\xd1x\xb8\xdc\x07\x11\xcaY\x15W\xe5\xf2\x8eOKK\xad\xad\x9f\x96\xee\xbc}\xfb\xdb\x1f\x1e\xdd\xbd\xff\x83\xff\x97\xef%\rM\x92d\xf0\x87\xde\xde\xbeG\xbf=z\xf0\xe0\xd1\xdd\xb7w\x1f|\xd5\xd8\xd7\xfb\xd3M6\x87\xc3\xe6\xac\xaf?\xb8\x96N?|]\xc4M\x84n\x0faU\xdd\xfe;\xa8\xaa\xa8`\xc9o\xf6\xf65V}\xf5\xe5\x97_\xdcj\xd3*Gj^t\x9a\xef?\xfb\x1ev\x81M\x12qo\xe7\xb7-5Z-lc\xb57nh\xb5\x83\x17\xab\xfa8P\xebP\xed\x95\xd1t\xa1\x98{\x9b\xe9U\xc0\xba\xf6h\xfd\x07\xb6\xbc\xe2fk\xc5\x9d\xbe\xda[mmmpn\xf4\xe8\xc1\x06\xb7a\xfd\xcf\x9f?kj\xaa\xbf\xd4\xe4\xefu\xba["1\x82\xba\xb1\x80\xb9\x1e\x8bj[\x1a\xef\xde\xe1T\x03V\xef\x17\xd9h\xa1\x98w\xb1\xd3\xab\x0f\x9b\x95\x17\xdboV\xc8\xe5\xac\x9bw~j\xbc|\r\x84D\t\x17\xf5\xacfes\xf9;\xdf\xc0?\x9f\xd5\xd7\xf7\xf4\xd4k\x9e;\xe1\x16;\x82n\x13\xd1V9\x16\x8bF\xb5\xb7\xaan\xdfA\xc6nW\x8dd_\x15\xd5\xd6\x1e`U\x02\xd6U9\xab\xf5\xe6\xdd\xcb5`j$\x1a\x83\x1b\xfb\x15SF\xe6\xf3\xb9\xfb-\xff\xfa\x0f\xabf\xfc\x9aF\x9a\xc6q\xfc\x03\x0e9\xf2\xd3\xc2\xad$\x95:!\xa4\x8cM\'J\\G\x18\xa3\x04\xe3\xa6\xd1\xc6L0G\xbc\xa4\x86\xce\x16\x8d\xa2Ht\xb7\xb8h\'\x97\x1a\x9b!\x97\xd5\xb6\xe1\x8aJA\xd1%7^\xc2f\x9a.\x86\xb5w\r\xdb\xd0\xab{\trk\xaek\xc0\xfcru\xb9f\xc1\xa5wl\xb8\xb4\xbd\xe7\xf5\xee\xfe\x82\x9b\xc1D$\xc2\xfb\x99\xe7\xfb\xbc\xcf\xf3|\xdf\x89\r\'\xa38nJ\xfa\xc1(\xae\x07\xfa\xdb\x1e\x16Q\xad,\xa9\x1c\xc39H\xae\xae\x99\x91\xed\xed?|#\xae\x88\x10\xade\xc0\xd2\xeb\xe9\x99\x9eiK\t4\xdc\x8aM\x97J\x1b\xfd\x81\xc0\xf1\xbe/\x91|\x80\xb1\xa1\x90\x925%?\xe9?\xf6%\x12\xfe\x80\xd5\xaa\xb5N\xabT*Kj\xca27\xd3\xd5\xd9\xd9\x95\xbb\x97Zz)\xe6I\xd7\x7frk\xde\x0eT\ng\xd8\xeaph4s\xb0\xac\x162L\xeb?N\xf8\x12\xfed/\x0ec\xea";\x98\x0c\xdcX;9\xf6k!\x9e\x16\x83f\xcea\xd5:T\xa9\xe9\xf0%\xc0r\xdeK\xe9D\xc5\x1aC"^Y\xa0\xf5^\xbd\xd3\xa5\xb1j{|\xfd\x1b\xda\xbb\xc8i\xfd\xea\xd3\xf3\xcf\x12\x89gk\xab\x0f\xf0E\x18\xb8B\xa6\xd9\xb5\x17\xcf\x12\'\xd6\x97\xbf\x7f\xff\xe7\xef\xbd\xbf2m-\x05\x00Q\xd53\xd3\xd9\xd9\xeb\x94n\xeb^\x8aX\xb7\xa0\x9c\x02\xd6\xe50\xd20w}}nn\xfd\xe4\xceF,u\x7f\xe9\xaf\xef]~\xf2\xf7\xfd\xc4\xfeI\xff\xd7\x0f\xc6=\x17\x8d\x85[\x83\xb3\x89\x1b\x89z\xfd\x87\x7f]\xd9\xfe\x99nE\xa7\x8bml\xf8F5V\xcd2\xa8\xe8&lt;\xaf\xd3}\xfb\x0f\x89\x88X\xbf\x05,\xdd\x10\xad\x06\rs\xd7}\xeb\xbe\xc0\x8d\x17\xaa\'W\xee\x7f\xfc\x9b\xe7\xdf\xd6v\xe3\x9b\xb3\xb3\xb3\xaf\xc6\xf3\x03F\xe5\xad\xc1/\xbe\x9eM&amp;\x83{\xdf\xff\xf2\xa3\x8f?J=\xe9x\xf1b\xe3\x93\xd1\xf5@\x00\xb5-\xe7\xf9m\xddw\xe29X\xc9\xb9\x0b\x7fFX\x0b\x08\xcb\xde\x15O\xae\x82\xfb\x0b\x0c\x1f\xfcmz\xea\xb5\xe3\x07zs3\xf9\xc5\xce\xe4\xb5\xa3B&gt;\x9f\xbfumrv6\xb9\xb9\x19\xa4\x9fnlM\xf7\x1c,\xfb\xfb\xfb\x13\xab\xab\xeb\xa3\xd7/u\x99\xec\xe7\x97\xb6\xbf\x13\xafU\x9f\x1b{\xfc\x97Ou\x97uC\n\xb5^v\xa9\xab\xf7j\xf2j2\x99\x8c\xef:\x9da\xdfr&lt;\xb8\x0bX\x93;Y\x82 \n\x95\xf1\xdb`\xc0\x92\xc1\xdd\xccnp~4&lt;\xb3\x1b\x8c_\xfdj\xf5\xf3\xcf?\xff\xe0\x10\xa2E\x9f_J\xfdS\xb43\xd4so\xcfj\x07W\xfe\x8b\xa5W\xbb1Yo/\xec+YF\xb6G\xef\x06\x83\x99\x0ch\xb8\xf3*K\x12G\x04\x91\xbd=\xb83\x99\xdc\x04\xaeL\xa6\x13\xaa\xaf\xc9\xd4\x05\xc3\x16\xb8\x12\xd4\xe2\x15\x1d\xdb\xba?\x8e\x89\x95[c\x8f8&gt;\xe8/Y\x96\x86\x14\xfat\x1a\xbb5\xfe\x0b\xaf\xdb\xad\x87\xa1\xcb\x9b\xc6l6\xa1w\'9;\xf9\naA\x99\xcff\xaf\xbd\xea\xdd\x01,\xc0\xb5\xa9\xd56\x9b:\x9dN{\xf5&amp;\x13\xc2\xa2;\xb6/\x7f\xff\xcdO\xa7b\x0c\xa8\x12\xc9[\x86\x03\xf72\xefhcy1y\xa5"wS\x14\x85\xb9\xddn0\xa86S\xef\xce\x83WB6{d&amp;\x10\x16\\6\x9b\xa9\xfdB3?\xeeN\xe3\x18\xd8\xeb\xdeAh\xf2R\x9df\x19x\xdf\x89P\xe8%\x92\xd3j=c\x8b\xd8\xe7\x96\xa0@\xa41\x98\x96\'\xa8\n\xfa=\xd16\x11nu$\xc2 \x18\xb2@\x90\x8c\x90e\x18&amp;J\x82\xa1v\xe38N\xc1l\r\xb7 \x07\xaeA\xd0Qq\xaf\x14\x0f\x96y\xae\xf6X\x1c\xac*\x9f\xb1\x99\x86/?\xddK\xa7\xc1\x86M\xc8\'*\xa1J\xa5B\x02\x14\x05\x8b\xb7\xb5\x13\xb2\xa4\x92\x88\x169\xa1\x18\x05,\x82\xc4\xe1\x8fr\x14X\xf4\x86\x8c\x06\xc8\xb87\xa41\xf1\xe5f5\xf3\xe6\xff\xcf/\x10\xb1\\\xe5"x$nx\xba\xa7\xd7{\xd1:\x95\x8a2O\x00\x0b\xcb\x92$l\xc0(\x93-",3Y\xe4x\x01\x85\x8b0\x9b\xcd\xf0C\x14\n\x80\x0fh\x18\xa66u*\xf6\x9e\x0e\x9b2|\xa3\xd5\x14\x05\xeb1W\x1506r\xd8\xb7\x00U\x1e\xb2\ncH\xe5\x80\xb1pttT(\x10\xe8"\xa3\x8c \x14a\xd8"\x19\x8e\xe7\x8a\x0cC\xb2\xe6\x02\xda\x97P2\n\x85\xbc\xb2\x82\xa4\xee\x05\xac\x83Q\x1bf*\xb7\x8ab\x9c\xdbH\x1ef\xaaEPipn\x01\xe6r0\x88B\xb6b\x1c\x80\xd2Y(\xc0\xe2\x05\xa52\xc4\x02\x0e\x87\xa43G\x856W\x14\xb8\x08\xc06\xb7\xbf\xa5\x0cA\xbc\xdc\x83\x9d\n\xc5\xc2\xa8\x97*\xf2\xd5G\xa2l\xc5\x87B\x95\x13\x98\xa8I3d\x97\xc9\xbc8&gt;.W\xa2\x82\x9e/\xc0\x92y\xa3\x11\xb4c\x04N@\t\x05q\xe3x\x1e\xbeL\x9aQ\xb8\x8e\x08#\\y\xe5\xcd\xd0\x04\x95\x86\x8c\xa7\xc3s\x83L\xb6\\=\x13\xe3\xdf\x10$\x0f\x19\x84\xc54\x1d#\x10-/\xe4|\xe8\x7fXy\xe3\x80\xd1H\n\x08\x05\x91\xb4\x0b\x17_.\x979H\xae\xb6\xcaG\x88;\x84\xf6nZ\xd6\xa5\xa0?\xd4\xde\xce"\xac\x0bb`\x8d\xd5\xaa\xb0p\xb3\xb5\xd1\xe3T\xc8\xf4\xc8\xe6{\x08\x02\x90\x8c\xe8\xc8a\xc0,4\xcae^\x88\xb6\x93\x1c\xb2\x9f+7\x1a\r.j\x06\x1f\x04XD\xc1lf\'Pn)\xec\nz\xa44\xe8\xe5\xca\xd5w\xe2`\x9d\x95\xcb\xd5r\xb3\xe5\x97\x1e\xd025\x16\x89\xc8Y\x92\x80@\xb5O\xb3\x8cL\xb5^\xe6\xf9b4\x84\x043\xb2\x90\xf4\xcdf\xbd!\xb0J\xa3\x12\xc9h&amp;\x18\x06\xa3(\xa8\x0fv\x9a\x96\xdeip\x02_&gt;\x15e\xe4\xbap*\xf0\xd5j\xb5q]\xfb\x94V\xcb\xa0\xdf\xe0\xd88\xa1\\DT\x03\x03\x04\xdf\xaa\x97\xa1Z\x01\x97\x07\xdck\x08J\x04_\xae\xb7\xcaQ\xa5q\x11m\x08\xb39\xca@\x80\xf5]\x9dv\xda\xd9\xbd\xd5(s\\\xf1\xad8\xad\xfa\r\xc3\xd7aq\xbbv\x88\xa6e\xfa\x08t\x14(^\xbf\xbe8\x00\xee\xde\\\xac\x9e4\xb8b1\x92A\x85\x81a\x8a\xd0\xa29\xbe~\xd2`\n\x030\x15\xe6\xd1\x86\x88B\xc9\x07\xc3o\xb7\xbb\xfa6\xaa\xcd\xa6(E\xbe\xfd\x10\xea\x11\xdc\x7f\x8bWt\xf78a(\x90\xd90\n\n=\xc2\xba\x98\'\x84z}\x93\xe7\x92\xc7\xbex0\xc3g2\xc1M_\xa2QN\x9e\xd49\xc2\xb8h\xcc\x1b=J3\x81y\xbdz\x19\x18\x0cg\xb8o\xae^m\ng\xe2\x9c%Ar\xf1\xd5V\xabIwk\x0f\xc0\xfb\xc8d\xe8)\x81\xf2":\xcd*\x10L\xa3\xd1,7\x9e\xbd\xde\xd8\xdf\xdf\xf7\xef/\xef[\x9f\xbfn56\xeb\xd5"\xe4\xbc2\xaf\x04\x11I\xaf\x1a\xc6\x07{W.\x17\xee\xf3\xd7[\xcd\xe2\xa98&amp;Cr\xe1\x9d&gt;\x93i\xd6\xe3\x1d\xdd\xae\x1c\xd4\x08\xb5\xde\x8b\x87&lt;(\xb7@\xa2h\xb1\x98\xd9\xf4\x1d\xf7\xfb\xfd\xd6i\x83\xc1\xe1P\xbd\xd8\xa8\xc3\\\xc3\x91f\xa5\x12J-K\xca)La\x97u\xe5\xc0&amp;\x8ev\x1f\xb7ZU\xec\x8dX\x83\xe0i\xad\x86\x15\x1bI\xada\xe1\xc0)\xd3\xcb\xd4^*\xe4\xf1,^\x1c\x00\x85H6\x84\x05}w\xa6T\x86X\xcar\x7f\xc5\x12\x9b\xda:\x0e\xea)\na\xc1E\xe28\x96\xd6+h\x90\xf0R|\xb8;\xd0:i~)\xd6\xa9\xae\xe4M\xad\x06\x969=b\xf8\xd0\xe5T@\x01\x829"\xa4\xfc\xcch,\x10,\xeba\xd5\x9b~U\n\xbc\x7f\xea\xee\xca\xfd\x95\xa9\xe71\x7f\x1c\xbf\x19\x82N\x04m)\xc4R\xb8[O+\xecNg.\xee\xeaq\x04&amp;\x0f#gb\x1dBH\xde\xd6jp\xf7l\xb8O:\x94S\xd0\x100\xb7\x1c,\xf4"\xe4s\xc8S;\x9c\x9f\x03\xe7\x1c\xb3X,}\x86\x98E\x95\x9aR\x1d\xefR7Cf\xb3\xd2\xe3\xf1\xc8\xa1\x1b\xca\xecN\xda\x9e\x9b_v\xf5\x18|\x02\xa6~\'\x96\x86\x92\xb1\x9fj,K`\xc3\x1d\xd2\xa1\x19\xbb\x02.\xb7\\&gt;\xe1\x01\xac\x10\xeb\x9eY\xb7N[b1\x95A\x85^\x8e\xe9\xd8\x92\xc5\xe1\xeb\xa4Bl\x1b\x8b\x05,\x88\x15\xedt\x8d\x86\xc3#\x9ax\xd4M\x9f\x8a\xf7\x1c\xea\xed\x97$I2\xa3\xd2\x8e!\x97\xd3\x0e`i\x8a\x9a\xf0|\xe6\xf1P\xfa\x19M\tB\xa42h\xa7c*\xa0\x9asL\xad\xa4\x0c\xd6\xd1N\x0cg!\xffn\x86*\xd0\x0e\xf7\x14\xf6\xdc2@iF:I\xfc\xc77\xe2\xf9\xd7\x0b\xa7\xd1#\x92\tk5C\xae\x19;p\xa5\xa9\tt\x8c\xecv.\xf7\x94\xb6\x00\xc7\xea\x1f]\xdb\xda\xb2\xa8\x02\xfe\x80Ju\x17&gt;\xaf\x1eF(\x16\x1d\xeaB\xb4\xf4{\x8a\xdc\xcc\xc2P\x8fV\xdas\x88\xe3\x8f\xc4{\x8e!9\xf7\xf0\x0c\xba\xf0\xf2=\xe9\x88\xcbE\xd3\x8a\xbd\xb4[&gt;\x81\xa8\xe6G\x1c\xaa\x92\xd5\x1a\xf0%\'W\xd7n\xfc\xe9wk&gt;_\x7f\t\x84\x8c\x95\x86\xe32\xf4\xb4\x11\xbat\xda\x9e;\xc8\x01\x95TzO\xbb\x8bE\xdf\x89x\x90$\x91&lt;&lt;\xbd)wI;\xa4\x0b.\xa8]{\xe9\x1f\xc1\xfa\xec\xb9\x16F\xbaQ\xa4|A\xd4}\x1a\x89\xc4WI0\x8d\xfe\x7f\xd3r\x85\xafm\xdbi\x18\xdf83\xd6\xe0\x9f\x99nn?\x1cG\x12N=E\x17w\xa0\x90\xdc\x90\xb5\xc06\x81\x82\x90\xacX\x1d\x85F\x8dk\xc7\xa1\x9b\xcf\xd3\x07\x1bcsW,\x18\xf8C\xea3$\xa5A\x1ai\xd3^&gt;\xa4\x90\x1aJ\xadt\xe5h2\x1a\x9f\x9d\xb8\xbd\x96\xcc.=S\x9a\xc25)\xd8M\x93\x862rIG\xb9\xdb\xbd\xca\xfe\x84\xb3\x7f6\xfe`\x84\xf5\xf8y\xdf\xdf\xf3&gt;\xaf\xfdJ1&amp;0&lt;\xbc \xf2\xc1O?\x81\x08~u9\x94\xe5\xd3\x82\x80\x01,\xba\xf4\xc5\xc7\xffi\xea\x08\xa3\xcd\xbd\xf4\xe3\x8e\x81\x10\xe0\n\x86\x8e\xde\x85F\xb1## \xc6\xbf\x10\xcf\x85\x93w\xf2\xf9\xfc\x0b\xb07w^\xbc\xb8\x93,M\xc6|7\xc7\xc6\x02~r\xf6\xab\x0f?\xb9\xfc\xe9\xc9\xd9\xb4H\xe2\x14\x86\x08\x82~|\xfd_M\x1e)\xb6u\xba\xf7\r\x0cC\x02\xe0:\x11:z\xf9\xf2\xc9\xacH3~\x95\x0f&gt;~\xb6\xde\xeb\xeb\xcde&amp;\x9f=\xabD\xe3\xaf*\xf9\xc9Xo__ \xe0\xcb\xb5C/yb\x16H\xc5\x08\x8a\x80\'Y\xfa\xdb\x7f\x9b=\xa2a\xb3M\x19\x07\xb8\xb8D\xc8R\x89`NT\x19:\x97I\xe6\x9f\xae\x93[;\x9bo6\xef\xfe\xb0\xf9f\x87\x8e=\xcd\x9f\x8f-\xf4A!R\x13\xed\x7f\xb8|4\x94\x16\x11\x81a\x04A`\xc2\xfeR\xd3\xc7\xc2m\xb6\xefL\x0eQ8\x12\xac\xcax\xe2dJ\x14U5\x16\xcdW\xa2\xeb\xcc\xdb\x87\xfb?\xfd\xf8\x06\xd6O\xfb[\xe5\xf5\xa7O\xa3\xf1\x05\x1f\xe3\xf3\xe5\x82\x1d\xed\xa1\x88@\x92\x04B8\x81\xcc\xdbK\xcd\x9f\x8d\xb5un\x98\x9c@\x00]\xe5Hu6\x98 i\x8e\xcf\xc5\xd6\xad\xe5\xdb\xd9\xdc\xdc\xb7P\xbd\xd9\xdf\xdc\xaa[\xbf\xa7\xc6|\xf1\x9cH\x93\xd9`h6E\x1a\x88@\x18\x8e!s\xb5\x05C66\xdb\xf2\x9a\x01t!C\x10\x84T\x96\x17\x85\x94\x14\xb5`\x81\xa5If\x92\'\xee\xc2\xfaak\xab\xca\x11}7\xce\xde\xe8\xed\x8dJ\xb4*\xa6\x82\xc14"\x11\x06\xc1\xc7\xf0\xfar+\x06\xf1lK\x7f\x17\x04\x9c\xc2\xe1\x14d\x8a\xe3\xb8r\x84\x8f\x81\xfbK\x96JW\xa0!\xfb\x16\x1a\xa0\x83\xdf\x8fJ`\x05\xd7\xe37n\xa8&lt;I\xa6\xb2\xd9l\x1a\x14\x8b \x18DPo[3w}\xfc\xb6Y\x86\xef\rqD\x82\xc0\x89\x02G\xc7%\x0b\xd6\x150\xcb\xd7\xbf\xfe\xf8k\xeb\xe5\xc3\xdf]\xbf\x92\xcc\xe4+\xb1^\x1f\raN\xa5\xd3\x1cb\x80-\x84\xcb\xf2\xcb\x96\xcc\x95\xd9\xdc\xdf\x9bu\xcc\x8a\x07B@\x96@\n(.\x85\'G\x92\x8f?\xff&lt;\x99/\x01\x9c\xd2\x17\xe0\x80,\xc2\xf2\x95\n\xaf\xfa\x19\x81\xe3\xe18\xd8\x87\xf0\xa4\xf4\xc2Tk\xa6\xf0:7^\x17\x11e\xa128!].\x0bb*\x9b\xa9Lf\xf2\x99|4\x1a%c&gt;:\x15\xacf\x80\xbf\xe4$\xc0\xf2\x05\x16D\x10R\xce\xb0\xe4\x01\xc3p\xed\xf5\xf3\x96\xa0\xb2\xa6\xac\x8bE\xd8Q\x86\xc5\x16DG\x94\xc0\xdcM&amp;\xa4\xf3\xd1\x98\xaa.\x04\xd8@\x1f\xc1\xa8\xa4$I\x95\xa8T\x91H\xbf\x0f\x01U$i\xfc\x9c\xf0-\x8a\xe1\xc1\x7f\xc3kx\x03\xc3\x8a\n^\xe6\x04\x8e\x13\xc9`)\x93\tG\xa3\xb1\xb8\xcf\x7fs\xac\x8fb\xd9A\xf06j&lt;\x96\x93\xa4,\xef\'\x10\xc4\xd9"\x97  \xb5\x1a\x1b\xad\x1a\xe8\xb7\xb9_\x16\n@\x97\xa2\x18\x08\x13\x04\x91\x8b&lt;.\x952\x16;\xf1\x05\xb0\xf2\n58=\xb8\xe0\xeb\x8d\xe7\x00\x96$\x06X\x8cD\xb8%X\x04\x8e\xe3r\xadU\x17\x8c\xd8\xdc\xcb/\x1b\xb2\x86#\\\x01\x0e\xca{e\x8e\xcf\x94J\xf9L8_Q\x03`\xff\x14|\xfa\xdc\xd8B&lt;\x0e\xa0\x12\x12/\x12,\x05[\x10\x14\x05a\x8aR\x90\x8b\xfb-\xba.\xc3}\xe9Q1Mx5\\\x91qL\xa8\xd7M\x13Z\x8ed&gt;\x98\t\xa6\xc8\xc0\xf4\xb9iE;7&gt;\xe6\xcb%\xb2|N\xe2\xd3e\x13\xa3d\x02r\x8a2\x00\x96L2;\x1b-\x99\xd3\xb5\x1d\x9bj\x8ce%\xdd\xab\xc0\xc2\xcc\xb2\xc9\x19\x86\x90\xcd$\x82\xc9\xa0D\x12\xd0%*\xde\xc1\xc1\x80\x9a\x8a$\xf8\\NL\xd7\xf7\x90\xa2\xcb8\x05lAfQ\t_qj\xa9\x15\nq\xfc\xd2mmXj\xe7\xbd\xfdp2\xcc0\x8a\x80\xcc\x10sQ)S\x89\x89\x02\xcd\xb0\x14F\xd2*-\xa6r*/\xa22\xb0Y,\xca\xba\x0c\x8a\x82i\x944\x17Pn/\xb7\xe0\xfa\xad\xcec\x1f\xfcS\x1b\xe6\xdbCh\xda\x8b\xfb\xc1&gt;a\xa6\x89\xe3\x88&amp;E\xbe\xc2\xf3\x90\xe24\xc9Aw\x03\x9d\x84J\x93\x0ca\xd4\xcb\xa6i\xc1Rp\\\xf3\xd2C\x937\xa7\xb7\xae\x1e\xebl~\xbe\xb7\x1d\xfe^\x19\xa7?k\x0f2\xfd\n\xf8:\xbch\xa2"\xf8\t\x12\xa99\x90\xd5`6\x1b\xa9f\xadN\x82`H\x11\x14\xd7(\x1b\x18\xa2,\\\x8a\x97\x9d\x9c_\xe9\x1b\xdfY\xbd\xd4t\xe9\xea\xbc\xe6t=l\x8c\xd3\xdd\xdd\x8fS\xb2\x860\x8a*\n\x06\xc0B\x04C\xf3P\x91\x83\xa1j\x15\xbc\x15\xb2\x1ck\xb6,`\x82a\x809\xa3X]\xd3\xbc\xfe\xd8\xdc\xe8\xca\xcd\xd3;\xab\x1f\x1ckv\x14\xdd\x87\\\xae\x87\xb5q_wwO\x04\xd3\nV*\x83\xde\x9b\xd0;\xb0\x0c\x99\x8ddC\xa1\xeal(\xc2\x914\xc3\x88\xd5\xb2\x81\x04\xb3\x88\xc9\x14A)\xde~\x9d^\x99\x9b\x1f\x1d\xb6`5\x9d\xae[N\xd7\xe1\xef\xd6\xc6}33=\xe14\x05*\x01:i\xd6M\x03\x93uB\xccf\xab\xd5H:\x1dI\xa7\x04\x92!\xc9r\x953\x8b \xa1\xb03pL\xf62\xb9\xd1\xa1\xf9\x95\xe1\xf1\xb7\xab\x87]\x1f57\xbb:\x8f\x1c\x06X{\xe7\x16\xba\xba;&lt;\x11A\xd64Y\xc6\xcd\xbdz\x11Wt\xbf*\xf2\xd9\xb4h\x18\x1cxC0\xf8F\xbaZ\xc6\x00\x96\xa2\x80\x9e\xe2:KJ#\x8b\xf3\x17.Z\xb0\x06\xdei\xaav\xd9\x8e\xdb\x07\x0e`\x05\x86f\xba\xbb\xc2)L\xd1\xbc\xfdZ\r\xf6Z\x03\xd7\x03&gt;\xf0\xa1\x02\xa2\x08\x9a\xa7\x19\x90\x03\xb3^\xad\x03U\xa0\xec\x04\x12\xb1\x80\xca\xcf\x8d\x0c\xcd\x7f\xf3\xe5\xb9-\x80\xe5\xba\xd6\xd9Tup9\x9d\xae\xd5\xbd\xf1\x9b\xf3\x8b\xdd\xdda^ \t\xd9\xeb-4\x1a\xc5\x06\xec3\x061\x0c\xbc\xa1\xfbR)?\xc5\xca\xc5\xfaN\xbd\x06\xaa\xe0\xf5RH\xf43\xfcy@5z\x7f\x02\x04b\xc0\xe5z\xeen&amp;YmN\xa7c\xe0\xea\xce\xf8\xd8\xfc\xcc\xf6\x8c\'\x11\x06\xdfBQZ\xa1\xf6\xba\x86\xeb84[\xac\xac{\x07YQ\x80\xaa\x8c\x99{;k5@\xd5\xef%H\x9f\x8fN\xccy\x16\x87Vv\'\x06-XN\xe7\xb5\xe6\x92\xe5p\x0e\\};\xfe`t{\x1b\x92&gt;\x18\xe1\t?%\x17j\xb04\x05W\xc0\xd2X\x83\x96P\x99\x15\xacf\xee\xad\x01\x87\x96\xc0\xab"\x9d\xe3%\x88\xe1\xd0+\x80\xb5\xf9G\x97\xcb\xe9z\xb7yQt\xb79\x1d\x0e\xa7\x13`}yaf\xfbL\xd7H\x97Gb\x18BV\n\x85\x82\xd6\x7f\xafQ\xf0\xea\xd3\xfd^\xcd\xdbP\x14\xbcV[\xdb\xabi\x9a\xceR\xa0\xab4\x9f\x98\x9b\x1b\x1d\x1a\x1a=\xfb`B\xdew\r\x0c8\x9dm\xc7\x9b(\xa5v\x0b\xd6\xc6\xdb\xd3\x13\xdf,now[#\x88\x89\x9c\xeag\x95\x82\xe2\xd5\xeei\x9a\xa2\xf5k\x85{Z\xa1Q[\xb3V\r,\x03KXB\x9b\x08\x8f\xcc\x01[\x17\x9e\\\x9c\xa8=t\x00[\x8eKM\xfbo\xdf\xfd\x0b\xbb\xdd\xee\xf8\xab\xe3\xf0\xe6\xe9_\x9d\x9d\xdf\x9e\xf9\xac\xa7+\xd8\x13\x0c\xa7HF\x97\xe5\x03\xca\n\x9aW+h\x85B\xe3\xf5Z\xcd\xac\x818P:\xebW\xa1R\x86GF&lt;#\xf3\xf3\xafv/N\xec]m\xb3`\xd9\x7f\xdb\xac(\xde\xb2[\xb0 \xbb\xa6\xee\xfd\xe9\xc9\xca\xf6\x993\x8b]]\x1eO0\xc1C\x01du\n\xb7\x9c\x0e\x94&gt;\\)Z\x92\x01\xc6\x0fJ\xa1\xee\xa7\xf9pb\xce:pd~\xe5\xec\xee\xc5\x8b\x8f\\\xefA\xc6;\xecG\x9a\xe4R;?:@\xe5r\\Z}=\xb1\xfbj\xf1\xcc)\xa8@\x1eO8\x9c\x10\xc1\xce\xf4\xb1\x00\x83\xc20!\r\x1d\xad\x00n\x1a,}\x80\xf5\xd3\x89H"\x1c\xf6\xf4\xf4t\x8d\x0c\x8d\xbe\xba\xbf\xfb@\x9fz\xe7\x10\xa0r\xd8\x0f\x1do\xc6-\x10l6\xf7/\x7f&amp;\xcb\xfe\xde\xf2\xa3\x07\xbb\x10\xc5_\xff\xa5\xfb`\xc2\xd52|*\x13\xe8ce\xd6O\x90V\xef\x08]\x0e\x05\xb0\x08\x95L\x01nOO{OG\xd7P\xd7\xca?\xee?yP\xdbx\xf7}@\xe5\xb0;\x0eY\xb7@\xf8?\x81u\xdeZz\xeeh\x03X\xf0\x81\xef\xff{J\xdf\xbd\x7fa\xe6\xd4\xa9\xf6\xf6\xdft\x80z\xc1\x02\x9f\xe5\x0b\x04\x06u\xbd\x8f%\xa0\xe1&amp;\xa8\x00\xc3\xd04\xc9\'&lt;\x9e\x9e\x8e\x83G\xd7\xc8\x9f\xcf\xde\x7f\xb2\xbb\xb5|\xe4\x90E\x96\xfd\xf7\xff#\xe5\xfcB\xdbF\xec8\x9eJ\xb2dK\xc2\x15\x1a\x92\x82\xf1B\x1cL\x98k\xc7/\xc6M8\x1f\x18\xe2\xe2\xb9\x83\xad\xedr\xce\x1c#\xbaKb\x0cU\x1ab\xd8\x91\x07\x9b\xc3\xf7p\x90\r\x8f\x95\x10\xc2b\x93\x0bN\xdc\x18\x12\xfc0\x16\xe8C\xda\x04\xd6\x91\xacKh\xc2\x85\xf5io\xa9\xd7\x91\x95\x96\xd1][\xc8\xbd\xec\xfb\x93{\xe3\xc6\xc6\xfe\xfel\x87D\x8e\xa5\x8f\xbe\xdf\xef\xef\'9\xb1]-\xa4\x98\xcd\xff\xc7\xc9\x0b\x03C\xcb\x8dr9\x98\x14y\xac\x8fg]\x8d_\x7fq\x18\xdd\xca\'\x12\xbd\xbe\xde[S\xb7\x006\x85\\_\xba\xf8\xad+\x97\x7f\xfc\xd9\xe5\xcb\xd7\xaf\xdc\xbcr\xf3\xbb\x97&gt;\x9e\x9d\x9d\xbd\x15\x89\x8dA\xabH(\x14\xc8-\x01\xeb\xf2[\xb9\x9b%*\xb9P\xb6\xaaU\xcbx\xbaI\x1f\x1bq\xe1\x7fR\x8a\rZ\xcdv\xbb\x90\x94y\x85\x97y\xd1\xb5\xf7\xe5\x17\x87\xa5\x85\xd5D&gt;\xef\xf3E\xc6\xa7fc\xe3\xe3\xb3\xb7\xc6\x7f\x8a\x13\x87\xf7.\xbe\x7f\xf3\xe6\x8dK?\x7f\xef;\x1f_\xc3\xa2\x18t\xf2\xf9z\x08k\xa2xpP:\xbc\xb8\xc3\n\xf6\xbe\xf1\xd5r\xa1PE5\x0ch\xf6\xdf?w\x84T\xeez=X\xd8i[\xbc\x88\xd5\x89\xbc\xe8\x94\xb7\x0f\x0fK\x07\xb9\xd5\xd0U\x08F\xc3+66:9:9&gt;5&gt;5\xf5\xf9\xa7\xb3\xd7f?\xc5e|}=\xd2;\xd83\x16\x89\xf4\x86B\x89\xd5\xdc\x0b\xc2z\xe9qv\xdbXn\xa8\x1f\xb4,\x8b\xc8,\x1d\x9a\r\xf4\xd1\xc7\x80\xfcgx\x17\xfaF\xfc|\xbd\xbe\xb6V\xaf[\xed2\xadNdyQ\x90j\xd3\xa5\xd2Aq\xebA"_\x19\x8c\xc46\xaem\xf8\xe8\xbf\x1ac\xa3\xa3\x93\x9fO\xae\x8f\x8f\xaf\xd3e}&lt;B\xaf\xc8\x8eL\xc4|\x89J"\xbb\xb0\x14=(\xfdb{\x99\x13d\xf2P!\xac\x82eu\xc8\x1a\x05\xc3p3\xfep8\xbc\xf9\xef?\n\xa4o\xe0\x9e\x94\n\x06A\x85\xaa\x97\xdb\x057\x9fdY^v2G\xdf.\x81k\x1f6V\xbc=\x90\xeb\xdaDdpee\xb8\xbf\x7ft\xf4\xd5\xab\xfeG\x8fF\'\xd7\'\xd7#\xd0\x89\xdeR\x10\xea1+\xab\xfb/\x08k\xba\xc6v\x0bd\xa1\xac\x97\xab\xa9T\xb0P\xc0\xd5\xc2\xb5Zn\xb7\xab:\xcf\xeb)\xb7\xeb\xde\xbf\xec\x83\xbe\x91Md\xaa\x90\xaa\x13Wrm-\xd8.+\xa2\xca\xc2H\x97t\xfa\x06\x8e\x94^&lt;\xa8\xe4\xf3\xdex\x8foc\x1e\xdb\x1e^y\x04\xb0G\xaf\xceo\xaf\xac\xf4\x8f\x8d\x8d\xf9|\xbd\xbd\xbd\xbe\x80/\xd4;\xf3\t\x89\xb5\x14-\x95\x9e\x1d=u8\x01\xc5\xcbF\xd9J\xe9\xd8\xe7\x0eY\xa1\xdan[nY\xe4\x15,3\x98{}\xfftD\xf5\xf5\r\x8c\x0c1\n=\xa4\x8e\\\xd5\xeb|2\x894\xb4\x83\xac*\x01\x8bq\xee=\x8f\x82\x0brU\xbc\xe9\xb4\xd9;\xb1\x81\xd9\x04\xc3\x86W\xc6\xfa_\x9d\xff\xe0\xfc\xf6\xf0\xd8:\xbd\x90,\x12\n\x04\x90/3\xff g{x\xe3\xec\xd4\xe5w\xf2\xcb\x984\x84UO\x11\x17J\xab"\xb9\x18\x88\xb2\x8cC\xae[7\x0c\xe6\x1f\xac\xbc00ro\xd3\xc1\x82)H\xfe%)W\x84\xb5\xb6\xe6i{T\x95ay^r\xb0\xc7\xd3%\x92\x0b35\x1d\xf7~\x10\x8a\xd1\x9b\x111\xc5z\xc6\xfa\x87o\x9f\x9f\x9f\xf7`\x88\x82(\x16\xcb\x86\xf2\x153\x9f\xc8\xee\x12V\xeb75\xad;\xect\xf3\x84\xd5\xc4\xde\xdaX\xb0\xd2\xda!\x07E\x14\xe65/\xbbS\x9a\x1e\xfe\xfbWI\x0c\xdc\xeb\xc6\xbd,K\x1cT&lt;O\xdf\x00+)+;U\x89QY\xde\xad:\x04\x84\xeb\xa0U*-&lt;0\xbdq\xaf\x99\x0f\x05 \x18F&amp;\xc5ixx\xa5\xdfGP\x91@,\x10\xfad\xa6\x92O&lt;\xd8/\x16\x97\xa2\xad\x1bgG{\xfe0\xb2%\xcb\xa2n\xa5\xb0\xbf\x1d,\xab\xbc\xd3,(\xcb\xb2(\x8b\xa2\x8c\x89\r\xb0\xa0!~m\xd4\xf6\x8d\x08\xcb8\xbc\xf0\xac\x9aA\x01(i\x17\x9f$\x17\xf9\xea\x0e/eT\x91g\xbb9\xe3K@-\x96\xa2\xb9\x84w.\xee\xad$\xe8M&lt;8\xfd\x9a\x80H\xf4\x02\xe1@\xec\xd6D,\x12\x08\x84&gt;\xf0\x9a\xc8\xfb\xd6.Q-&gt;;i\xbc\x0e\x13\x16\xb6\xaf\x14\xd0\xe0\x90\x0bUh\xeeT\x0b\x06\xb1B\x0fp\xd9\xe5\xae+\x88\xd8\x85\x8e\x7f\x9b2\x9ds\xe0q\xaa\x94\x118!\xa3&amp;\xbfV\xe8\x1e\xcdEXb\xb7\x9fy\xfb&gt;\xb0\x16K\xc5\xacwn.\x1d\xafT\xcc\x0fzB\x91\xc0\xc6\xfc|\x0eBe\xb3\x1b\xa0\x02\x1fu\xaa\xd7\\\xcd-\x14\xa3\xd1\xe8\xfd\xb3FC\n\x87\xbbE\xc2r\xa7h\xee\xe8dc\xa3\\\xd5\x82:4\xb2m\x12;Ed\xbcc\xa4#\x15\xce\xd0\xec\xbbY\x89\x81Z\x1c\x97I&amp;E"\xb2\xf1T\xb7U\x963*&lt;p\xc2\xc5g\xad\xd6"\xb8\x16V\xd3s\xe9\xf4\xdd\xbbf\xc5\xac\x0cB\xb4\x89\xdc\xd6\xd6\xc4V6\xd03\x08\xf3\xf2\xf9\xbc\xe9\xf5\xe6\xb3\xfbD\xd5\xfaF\xedT\x136\x91[l\x01\t\xe5\x15;\xb6\x10\xabY0l,YfUUe\t\x8d\xa5Re\x11R\x85\xdd:\x1d\x89i\x99*\xb9\xc8E\x0er\xf1\xfc;,&amp;\xa3*U\x83Q\xa9\x15\xfd\xdc\xdes`\x1d..\x1e\xec\' \x96\xb7R\xc9\x9b\xe9x|ff0\x1f\n\xc7\x17m\xc8\x00\x00\x08\xe3IDATe\x03\xa1|\x1c\x91\xab\xe4\xef\xde\xf5\xc6\xcd\xd5}X\x08\x13\x9f\x1di\n\xf7\xf4\xa9\xa0\xf2\xd8&lt;/K\xe2\xda\x9a\x82&gt;\xaf\xc2A\xcd\xd0\xedF\x14\tK\x95TUb\\.\t\xfd\xd5\xb5)\xa7t\xde\xf6O\x95P\x8c+#\x10\x99\xba\x86nT\xd5\x8c\xaa\n\x82\xe4\xb6\x9a\xa2\n\xf7a\xc5\xd3\xb7\xd3\xa4\xd6\xe2!\xb8L\xef\\\xda[\x81\x9b@\x99\xf1V\xae&amp;\xae&amp;\xe0\x1d\xc00=\xd2\xf1|vwi\xa9\xb8\xd4Z|\xdeP\x96\x9b\xb5\x9a\x07SKUq\xc2%\x89\x18\x07\xa9B\xd5\xd24\x83\xb0HD\xf0\x00\x88nN\xc1\xc90R\x17t\xec\xb8KX\x0c\xca\x85\xe5*\x83\xdc\xa7\x14\xbb\x03\xb8\x8c\xc8k;\x1e\x15\xbeK\x8e\xb0\xa3\xf9\xe6\xfe\xa2\xcd\x15\x9d_\xc5\xe6\xe3\x15\x13nz\xe1Y%\xd4\xf1\x0e`\xa0\x9a\x8b\x87rE\xf4\xe1R\xeb\xc3mC\xd9;\xaa\x9d4\x14\xc2R\x14p\xf1\xba\x8e\xe3b\xf0\x1d\x96\xcc\xb26\x94 \x00\n\xe5r\xba\x98.\x1b\x97\x0c\xb5\xb5"d\xa7\xe0\x92\xf0\xb3\xea\x0e\xd6e\tA\x93DVn\x94)\x93\xc0\n\xb3o\xa7K\x87\x87\x8b\xadVi)\x17\x824\xa6\x17Xq\xa2A\xef\x99\x1d\xa1\x006g\x06\xe6\x17\xc0\xf5Q\xf4\xca\xb1.+\xb5\xed\x93fJf%\x15B\x89*\x86\xba\x164\x82A\xc3\xc6B\x9f\x81\x04T\x02A\xe1+~\xea\xeaD\x1d\xc0\x19\x92\x8a\xc9 \xf3\xb8CR\xe5$\xcb\x07uY\xf0s*\x94\\\xf6\xb8\x91H\x89\x1b\x1a\xf2\x9f\xbe!\x17[\xd1V\xab\x98[\xcdW*\x95\xf8\xdc\x1cu\xa5\xd7f#\xaex\x1c\x8b\xbc\x81\x8d\xdd\xdd\xddb1\xfa\xab\xda2\xa3\xfd\xe9\xc9I\xcd#\xdaX8\xff\xa6\x1b\x9e\xf9\xa7\xbe\xa2"\x87\x9c\x98\x00\x1c\x88l8W\x17\xf2F\xd2\x10\x16\x05\x8b\xc8 \x17C\x11w\xebA\x9d\xe5\x04\xa8\xa5\x8a\xcb&lt;\xb0T\xae\xfb\xf5\x9e\xfcv\xfa\x80\xb8Z\xad\xa5\xdd,5\x1dH:\\\x9d\\\xc5\x89\xea1a\xcd\x83k\xf7\xc3\xbf\x94y\xa7\xb2}|\xfc\xe4\x14\xfb\xce\xa2\xe7\x8d\x02\xcc3R8\xdah\x9a"\x8b\x92\xcb\x0e\x94 p\x1cg\xeb\x85\xcd\xbb\xba$\x10Ih\x02\x0crX\x88\xb4A.\xa7\xd3\xe1pfXz\x9c\xa6\x88\x92\xc4\xda\xcd\x8b_|}\xb4s\xd2&lt;}\xf9\x11\xda\x1e\x15-n\xf4\xcc\xcc`\x1e\x98$X\xda\xa62)]s\x8f\x1f\xa7M`\xed\xcf\xcf\xef\xdey\xe8I\xc9L\xed\xc9\xf6q\x03Y\x11!\x93V\xf0X\x1eO\x90\xfe\xac\xe1\xc6\x1e#O.(\xd5)\'}\xe1\x9cB\x17)\x03\x16\xa2\x01\xb6\x8b\xc1&lt;\x158\x7f\xd8\xc1\xe0TF14\x8f\xc7@[\xdb\x13Ee\xe5\x93\xda\xceN\x93?yy\xe3~\x8b|\\\x9a\xef\x8d\xe3\xf8&lt;\xdc3H\xf9\x8a\x9b\x94.\xe4+\xfe\xf8&lt;\x8e\xa9\x95\xdb\xcfML\xdc\xfcm\xcd\xa3\xb3\xcc1\\\xb4t\x84T\xa7Uz\xacF\xc3c\xe8\n\xcf`[\x0e\x07\xd7\x11\xeaoX\x80\xec\xea\xe8\x86\xc8\xd9W\\8\x87?\xec\xe7$\x16S\x8e\xa7}\xf3\x18\xe8H\x15Z\xb1\x92vvv\xbc\x83\x9d&gt;y\xf8\xc7\xef\xdd\xb9s}\xb1\xb5\x1b\xeb\xa1#\xf4\xed\xe1\x19\xefL&lt;m\xe61\xdcM\xdbB3\x1f\xd8\xcaa\xc2\xce~\xf6P\xd1d\xce\r\xb1\x9a\x9a\xe1fe\xa2\xb2@\x05,C\x97\x19\xce\xef\xc7I\xa0\xdf\xe1p|E\xc4q\x14\xfb.b\xeb\\\xc9b\x07z-\x1cv8\x19V\xa6V\xa0\xe7\x87\x9aG[f%\x92\x8b9:{\xfe\xbbcMa2Z{\xfb\xcf\x7f\xf8\xd17\x7f\xf8\x93\xeb\xdf\xff\xe5\xcb\xa9\xb1^*\x12\nl\xc8\xd9\xe3\xb9x~5\xbb\x9f\xdb\x9a\x18\xfd\xfd\xcf\x8e\x15]\xe2\x9aO\x8eO\x1aF*EkC5\x1a\x96E\x93Tfa\x1f\xf7n\x9b\x1c\x19\xc99:\x92uA\xc1n{\x89\x00\x9d\xc2CC\xb8\xdf\x85\x8cI,\x1d\xf0\xe9\x89\x18\x04\xfbk\xd3e\x10\xdaH\x1d\x85\xf10\x9d\xc9\xcc$m\x89\xc14\xb3\x19\xd7\xdd\xc3\\J\xa17k\xa0`\x03\xf5\x10z\xaa`eY\x8a+\x85\xec\xa1\xba\x18\xacs\xe9e\xbc\xa9,Tz3a&lt;,\x81\x81\x8d\x87=x\x0bM\x0f\x81\x16\xf6b\xa04\x87 \xe4`\x1b\xa4\xadP!\x88\x07/~\xdf\xfb\xff\xb3\xf6O\x1a\x1a\x92\x90\xdf|\xef\xbd\xef{S\xcc\xc9\xac\xe6\xcf:W77\xfd\xdf\xe3\x19\xdbI\xef6{\xa3\xf10&lt;\x98L\x9e\xac\xb0\x89^b\x95\xf9\x12X\x1c\xcb\xb5\xe7/\x8e~9=\xdd\xb9\xf9g4\xba&lt;\x89\x9d\xf8\xb2y\x96@\x9eb\xf1\x0eU\x11\xed&gt;\x93\xa5S\xb9\xfc\xdd24#\x16\xebi\x9a)\xd2\xb2\xbc\x10*\xc0\x9b\x81mH\x02\x18yF\xba\xdco\xe2\x12\xc1\x85\x96\xcft\x07\x9d\xce\xf9\xbf\xe7\xcd_O.&lt;w\xbe\xd4\x1d\x9c_\x0f~\x0b+\xb5\x0f\xf7\x7f\xdc?^|\xf7\x9b\xb5\xb5-\xb4\xfd\xd6\xda\xf6\xfa\x11:k\xe7\xea\xacW\xbb\x8drn\xa6\x15%\xe4\xe0\x04i\xac:&amp;1f\x04\x0bVV\x83Yl4k\x8a\xc5\xd2\xa2\xa1(\x15\x9c\x03X2\x05y\x95\xe6\xe9\xf9\x18\x1dV&lt;\x89\xd1]\xd5\xcb&gt;\xc0\xae\xcf;\xcd\xa4\x18\xcf\xce/t\x07\xbd\x91\xff\xa0\xe2\xef\xad f\x0e\x17\xb1Ho\xd1%\xdey\xfe\xe7\xd1\xe3\xa3O\xaez\xb7\xc3\xb0\x97\x9b\x99)%-l\xc8\xe0\x12\xaa\x16\xfe\x84\n\xee\xca!\x03\x16~\xce1\x97\xcb\xedrp\x07\xcb$\x96\xd0z\x1ej\xc9\x12\xcaLb\xfefg\xe38\x1d\xc7q\x8e\x16\x98\x99\x99/D\xcd\xc1\xa0\xdf\xef\x9f%\x85j\xb5?y=\xf4\x1f\xbcU\xc1\xb9\xbf\xf2\xf5\xfe\xfe\xf1\xce\xfa\xf6\x17\xe2\xa9O_\x1c=\xde\xf8c\\{{nxmeJ\rp\xd4\xebZ*9E@\x81j\x8a\xc5g\xd7\x0eT%MV\x92Xl\xb9v{\x19\xa5\xf5p\x18\x95\x80\xc75\xc0\xcc\x00\xf67\xd8\xf0\xc4D\xc5R\xd2\xea\x9eE\xa5FRD\xdf5&amp;~ez\xeeo\n\xd7\xc7\xb0\xf8o\xd70\x86\xcf~\xda\xf3+\xfe\\8\xec@+dr\xa1p\x07\x0b\xdd\xcex\x96\xa8S\xe3\xef\xd2\xe4\x1d\xab&lt;\xad\xa4\x95\x02\x9aE\xfd0~\x8e\xedY\xe4r\x89\xc5\x10`-ai\xdc+\x10\xdf8\x04\xab\xa6\xf3\x99j\xbd\n\xc7n\xbe\xf6}!\x83b\xf76\xbf:&gt;&gt;\\\xa4sm?\xdc\xd8\xac\xe1\r\xbc\x19N\x12j\xc5\xfa\x954VA\x96\x19\xb8\xa0@M]\x89\x03g\xabB\x8a]\xa4,x\'_p\x18)\x96\x07\x07!\x97\xbc`\x9c3\r\xac \x80\x9d\xc0s\xf34\x8a\xacc\xe4JK\x99l\xfa|\xa8\xb1\xc0\x15\xae\x1c\x9f\xfe|\xb8\xfa\xf0\xe9\xfa\xea\xa7{\x00\n!\xd5h\xd4,\x92\x04\xf788E\xd9\x18\x16\xa4\xa9\x18tB\xa4\xb2Y9)\x14c!\xcb\x81i\xa5\x02vUY\xa6\xd1\xf4\x84\x85\xd6f\x18\xd3\x8a\xe2\xd3\xf4\xbc@h\xd1\x0cy\xc9\x0b#]\xaf\xa7\x8d\xdd[b)\xb4J\xed#l\xee\xfb\xab\xef\x7f\xfeAH\xaa0\xf4\xc7\x83f\xab\xf5?\x16\xa1r\x02\xa5\xcb\xe7:oV\x06\xb1N\x07\xde`A"\x08\x96"U\xa0\xa8h\xf8\xa8\xa3\x85J:\xac#A\x1dG\xfe\x85Z\xfc\x1e\x9b4\xcbm\xc3uq\x8b[Mw \x97:\xe0z\x82Dz\xef\xe5\xc6+E5\x1c\x8f\xae\x93$a\xd5\xa4z\xd4)7]\xaed\x81\xd2X\x0e/\x9d\xeb\x03\x1f\xd2Q\xe0J\xb5I\xa5\xb8\x08\x0e\x8d\xa0\x8c\xe5\xe1Zl\x01\xf4l\x08\xee\x88\x19\xe3\x8b\xe23\x06\xb7C;[m-5n\xfd\xd0\x7fC\xf6\x03\xd6\x8a\x95!u\x02\xd5\xa8\xd7\x8f\xa2\xa4\xa5\xa9\n\'\x9c=6@6\xab\x94\x12\xb1t&gt;\xeb8\xe4\xf4\x99\xaa\x90\xa96[\x8c$\xd4\xc6c\x19\xf9\xca\xb3%\x1dy&lt;W\xed\xac\x96\x8a\x07Q\xfc\xd1#\xc3\xb5\x9c\\c\xf7\xfa\x8d\\\xc0\xba\xf7\xddg\xdf\xd7\x04\xea\xe0\xb6\xd7\x8c4\x15\xcd}!\'\xfd4-\x9e\xa6\xd2!\xe8I\x05m&amp;\x9f\xfa\r\</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -527,6 +581,14 @@
           <t>Tite</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xc0\xdas\x8cPA\x1dEz\xdc\xda\x99\x87j\x00\'\xa5;\x80\x10GZ)\x80\x8b\xbb\xf8\xaa\xb5\xcb$m\x92qJ[\x01\x19tE\xc9\xefQ\xa3D&amp;B[\x1d\xea,\xc9\xe6/Jc\x93\xe4~\x83\xad*"\xc56\xd5\x1f\xf2\xc7#\xf3\xaaoB\x86\xa6\xe6\xfb\xddsS\x00\xdd@\xa2,\x07D\x015!\x07vi0\x16\x82p2i\x00)\xdc\xbb\x80\xef\x8a(\x02?|PFGJ\x9b{\xd7\x01\xbb\x0e1B\xa9\x07&amp;\xa8\x01\xfa\xd4S\xee1\xedSU\x10(\xea\xda\xfe\x93\xe1\xbd\x1am_]\xd5!\xb5\xb5\xb7\x8d\x9ek\x9b\x99\x02*(\xeaI&gt;\xd5\xf2\xb7\xc6/\xf8*\x9f\xc2O\x05\xf8\x92o\x0c\xf8\x1fFmq\xad\xd4\x995+\x8b\xc5\xb6\xb5_\x97 \x82Ag\xfaq\x9fZ\xa5\xbe\xa5F.G\xcb&gt;/\xff\x00\x82\xc1\xfcw\xf16\xb3&amp;\x9b\xe1\x9dcM\x8e\xd9\x98,\x91\xe8\xf6;&lt;\x95\'\x9f\xdeHY\xb2\x06=Fj;O\xf8)\x17\xc6-I#\xb0\xd7\x97\xedV\xd6\x8aVI"\xbee\x96G\xc9(\xed\x81\xf9\x80pq\xda\xb3s\x8a:#\x87v&gt;\x8d\xf8M\xff\x00\x055\xb7\xb9\xf0C_x\xda[y\xaf\x95\x90Co\x1c\xab\x19\x95\x88\xe5\x18\x9e\x83w\x7fC]\xa7\xc2\xaf\xf8)\x87\x83|e\xadMk\xe3\xaf\x06\xdci6\xaa6\xc3\xac[\xdc,\xd6\xef\xcfu\x1f2\xfdy\xfa\n\xad%\xaa1\x959FV&gt;\x93\xf0\xff\x00\x88\xf4O\x13\xe96\xba\xff\x00\x87u8ol\xaf#\xf3-\xae\xad\xe4\x0e\x92/\xa8"\xb4\xa2px\xa8Fj\xfdE\x00\x86\xcdKL\x02\x8e\xbdE\x00*!c\xb5~\xb4R\xe6\x024\xfb\xd4\xae1\xd2\x98\r\xa2\x80\n\xafyumco%\xe5\xe4\xeb\x1c1\xae\xe9$v\xc0QU\x10&gt;\x05\xff\x00\x82\x88~\xd2\x9f\xf0\x93h7~\x16\xb8\xd6#_\x0e\xcd\xf2\xd9\xcdcp\xac\xderw\x91z\x859\xfars\x8e+\xf3\xafT\xd2&lt;a\xe3?\x11\xdd\xab\xeb\x8d\x1c\x8bpDqH\xc7\xca\x7fN\xbd3\xd9\xb3Y\xd6\xa8\xa1L\xf4\xb0\xf4\\\xadc~\x7f\x86w\x96\xfa|r\xc1\xa3\xc7\x1e\xa8\xb8\x0e\x92\x86\xdc\xcc;\x0epr:\x1e\x86\xb4t\x8f\tY_9\xd6\x11\xe6\x8e6\x8b\x0f\x0cnCn^\xa8\xc7\xae\x01\x04\xfb\x86\xaf\x1db\x94\xa5\xa9\xebG\x0c\xe3\x0b\xd8\xe4|S\x1e\xa3\xb29\xed\xae\xa4\xb1\xb7\xb7&gt;n#\xfb\xcc3\x85\xed\xc9=y\xe8\x05;\xc1\xff\x00\x11\xbcs\xa3k\xa3G\x8a\xf6V\xd3\xd5\xb7|\xdf\xc2\xb9\xf5\xcfOa\x8a\xee\xa1\x88\x89\xc7R\x87[\x1fn\xfe\xc5\x7f\xb5\xc6\xad\xf0\xa3P\xb5\xd3d\xd6|\xcf\rMp\xa7V\xd3\xe5V\xdbm\xb8\xf3&lt;c\x90\xa4u u\xe4\xf5\xaf\xd2\xbd\x0fT\xd2\xf5\xfd6-cE\xbd\x8e\xe2\xdae\xdd\x1c\xb1\xb0*\xc3\xeb]\xb7\xe6W&lt;z\xf1\xe5\x9d\x8b@\x13\xc6*JFaN\xf2\xa4\xfe\xed\x00I\x0c@rz\xe2\x8a\x9d\xc0\x84(\x1c\x81A\x19\xaa\x01\xbb\r\x1b\r\x006\xbc\xb7\xf6\xae\xf1u\xde\x83\xf0\xe6m+O7QMx\xc1V\xe2\xdd\xc2\xaa\x81\xc9\x04\xfb\xe3\xb54TU\xe6\x91\xf9[\xfbH\xdaj\xfe7\xf1LZL.\x9cH\xc5\xddX\xee|\xf64x{\xe1\xb6\x8d\xe1\xcbE\x82\xcc-\xc3I\x18.\xb2\xf2\xca\xdd\xf1\xed\x9a\xf9\x8c\xd7\x1d\xc9&gt;T\xcf\xba\xc9\xb2\xfez|\xce$\xda\xe6\x9e\xd2i?\xd8\xd7P\xb2\xaco\xba\x19\x17\xef\xc7\xf4&gt;\x80\x8a\xc5\xb2\xb4)v\xd3\xdb.\xdf9O\x99\xb9q\x96\xc6\x0b~5\xe0\xfdy\xf4g\xd2\x7ff\xc7\x97c\x1bY\xf0\x8cZ\xbcB1\x032\xac\x9b\xe5\xda\xbf0\x0b\xf7P{\x0e\xf5\x89\xe2\xbf\x87\xf6\xb3@\x92\xdb\xc4\xb9\x8d@XcS\x8c\x03\x92\t\xfa\xfeu\xeba\xf1O\x95jy5\xf2\xf8\xab\xe8u\x7f\x06\xb5\x9f\xec\xeb\xfbx\xd1YcYT\xc9\x88U\xa3\x00\x1e\xf9\xed\xf8\x1c\xd7\xeaW\xec\r\xf1\n\xc7\xc6_\x0e\xaf\xb4\xbb\t~[\x1b\xad\xe5W;\x13\x7f8Q\xfc#\x8e\x9d\xab\xea0\xb5UL9\xf1\x19\x9d\x1fgSc\xdd\xe2|\xb6\x05L#,3\xb8V\xbc\xc9\x1e`yx\xeaE;\'\xd6\xb2\x93\xf7\x80td\x83\xc5\x14D\x08h\xad\x80(\xa0\x04*\x0f&amp;\xbeb\xff\x00\x82\x80x\xa2\xf7N\xd4\xb4=\x0e\xd5\xa6\xf2\xda\xd2ye\x1b\x80\x8cv\x07\xd7=\xa9Kg\xe8\xcd\xb0\xea\xf5\x91\xf0\x0f\x88\xef\xe4\x93\xc4\xd7\x17L\x15\xe4\xf30\xac\xbd\x85O\xa4_Osy\xe6\xc9.\xdd\xad\x86\xf6\xaf\xcd\xb3\x1a\xd2\x96"G\xecYU\x1eL&lt;}\r\x1djh\xa6\x97u\xb5\xae~_\xbd\\\xcc\xbad\xd2\x16b6\x88\xdb\x8f\xf0\xaf:3=N[ne\xf8\x82g\x86eE\x9c\x8d\xdc2\xaa\x8e\x7f\x1a\xc2\x8a\xf9]\xbc\xbf7\xee\xb7\xce\t\xafW\x07R\xea\xcc\xf3\xb1T\xfa\x96\xfc\x1b\xaa&gt;\x8b\xe3U\x8e\xd1"\x929\xa4\x1f\xb9\x91\x01C\xf5\x06\xbfF?\xe0\x9aZ\xf4q\\\xeb:,\xb6\xb6\xb0I}n\x93\x18\xec\xd4\x85R\x84\x80\x08$\xf6?\xa5}\x8eW&gt;j2G\xe7\\AO\x97S\xebH\xc0\xdf\x91S\xa7\xdd\xafB]\x0f\x99\x16\x9c\xa8X\x12\x05@\x02}\xea*\xa2\x044V\xc0\x14P\x01_%\xff\x00\xc1J\'\x96\t\xb4\xd6K}\xdbt\xf9\x1br\xb0\xc9%\x80\xe9SS\xf8o\xd1\x9d\x18O\xf7\x98\xaf3\xe0\x17\x9e[\xb9\xe4\xba\xda\x15\xa4\x99\x84\x8b\xddNx\xae\x9b\xc1\x96\x1aY\x90.\xa1.\xe5n~Q\xd4\xfaW\xe58\x899b%s\xf6l-\xe1\x85^H\xe8\xef4\xfd\x06\xc8\xee6\x97\r\x1ep\xae\x8c\x0f\xe9\\\xf6\xabk\xa7\xca\x99\xb3\x92G\r\xcb|\xb85\x86\xc7e9T\x92\xb9\xccx\x9e\xd7K\x07\x00\xb6\xf5\\\xa9\xdb\\&amp;\xa8\xb1\xc7w\xb6\xd1\xcb)\xfc3]xyJ:\x98\xe2z\x1b^\x00\xd1/\xf5\x0f\x11Ey=\x8b4q\xc8\x1c\xee^\xaa=+\xef_\xd8\x10\xd9\xd8|^\xb5kY\x7fw=\x9b,ynX2g\x1c\x1eG\xa7\xd3\x15\xf6\xd9,\xa4\xe9\xca\xe7\xe7|E\x1ft\xfbybPs\x8a\x9b\xc8\x7fQ^\xc7\xc4|x\x8e\x85:\xd4\x88\xa1G\x02\x85\xb8\x11\x1c\xee\xe2\x8a\x9d@\x8a\x9e!\xca\xee\xdd]\x0c\x06Q@\x08\xc7\x03&lt;{\x93_\r~\xdb_\x19|\x0b\xf1/\xc6\xd1\xdbxKT[\xb8t\xff\x00\xf4;\x8b\x88\xdb\x8f3w \x0f\xcf\x9e\x95\xcfZ^\xeb^L\xec\xc0S\x94\xf1Q\x92\xd9=O\x96\xbcM\xa7\xe9\xd6\x9a\x91"\x14V,\xc2B\xbcgi$\x13\xf8\x11S\xf8Jo\x0e^:\xc7.\xa9n\x01\x18\xff\x00\\\x17\x1e\xf9&gt;\xf5\xf9}jU%Y\xd9n~\xb7G\x15N\x9e\x1d93B\xf7D\x8c?\xdbt\x8dnV\xc3m*\xb3\xef_L\xf5\xe9M\xd3t\x0b\xcb\x96\x9d.\xa5Q\xe51\xe7\x8f\xc4\xd6S\x8c\xa2\xec\xce\xfau\xa0\xe9\xb9D\xe3\xbcSw\xe1m:\xe6kMKX\x85YW;\xa4\x99W\x03\xdf\x9a\xf3\xfdKP\xf0\xbc\xba\x8a\xc7\xa4\xeb\x90\xcd\xb9r\xbbe\r\x9a\xed\xc3\xd0\xa9\xc9v\x8e,F2\x9f?-\xcfg\xf8\x03k\x1d\x9e\xba\x1a\xea\x1f\x96K\\\xabI\x82\x02\xe3\xa0\xfa\x9a\xf5\x7f\xd8\xe7\xe2g\x87&gt;\x1bx\xbcx\xd7\xc5^&amp;\xb6\xd2\xec\xf4i71\xba\x93y!\x8b\r\x8a\xa3\x05\xb8\xdc\x07\xa6k\xec2\x8f\xdd\xc5\xa7\xd8\xf8\xbc\xe62\xad\x16\xa3\xb9\xfa\x11\xf0\xa3\xe2\xef\xc3\xff\x00\x8d~\x14O\x1a|9\xd7\x96\xfbOy\x1a?1T\x86W^\xaaA\xe8Eu\xa0\x822+\xd8\xa7%(\xa6\x8f\x8e\xa9F\xa5\x19rOt\x07\xa7Jj\x17?ykC1\x11A=(\xa0\x08&lt;\xb6\xf5\xa5V$m\x06\xa7\x99\x80\x8c\x85FM6\xb5\xe6@Gv\x82[Y#\xc1;\xa3n\x07~+\xf2&gt;\x1b-CY\xf1U\xe6\x9c\x15\xa3\xba\xb3\xd6\xa6\x17Q\x11\xcf\x96%l7\xa9\xc6+\xca\xcc*\xfb:\xf4\xd2\xfbW_\x86\x87\xd2d4cS\x0fZ]W+\xfc\xcf1\xfd\xa2\xbcq\xa8G\x04\x96\x1a5\xbe\xe9\x16F\xf3\x0f\xb7e\xaf\x96\xfcu\xaf\xf8\xd6\xdb\xc3\xf7&gt;5\xd4t\xd9\xd7M\xd3f0\xdc\x0b{\x9d\xb8n\xb8\xc1&lt;\x9czW\x81\x87\x8d:\xd2\xd9_\xcc\xf7\xb1\x94\xe7\x18\xea\x9b\x8aK\xf4=7\xf6u\xf8\x8f\r\x8d\xfe\x9f\xa2\xcbu\xa8[\xc9|\xca\n\xddHYq\xc3\x02\x0eq\x8a\xfa/\xe2\xe7\x88\xff\x00\xe1\x10\xd0\xdfUK\xe2\xabqg\xb9\x82\xb7\xdd$W\x87\x8a\x85\xb1\\\xac\xf7\xf0\x16xm\x0f\x8b\xbe+\x1b\x7f\x15\xe9\x1a\x87\x8atsus\r\x8d\xb3\xcf\xa8\\\x89&gt;T\x00\x13\x8eN2q\x81\xeax\xef\\\xa7\x83\xef|Y\xe1[\x8b]B\xc4\xc9o\xf6\xabu\x928\xe4`\xcaclc\x9e@&lt;\xe7\x1cW\xd1\xd1\x8f\xb3\xc2&amp;\xcf\x9c\x94\xb9\xf1mG\xa6\xa7\xd8\x9f\xb3\xbf\xc5}kU\x93K\xd1\xefq\xba\xdd\x14\x1b\x88\xdb!\xd7?\xd2\xbdS\xe3\xaf\x85\xb4\x0f\x83z\x8d\x86\x82\xfa\xacw\x1a\xa6\xa4\xb2\xc9gn\xc7\x95Fm\xc0\xed\xf6^0{\x9a\xda\x8d_\xdc\xceK\xa6\x87Di7^\x11}O\xaa\x7f\xe0\x89\xfaw\x8b \xf8\x03\xe2K\xff\x00\x10\xc12\xdb\xdd\xf8\xb2g\xd3|\xc58(\x14\x06\xc7\xb6k\xedU\x1bF\x05{X?\xf7x\xfa\x1f\x1f\x9e8\xbc\xda\xb7.\xd7\xfd\x10\x00O\x02\x9c\x10\xe7\x9a\xea&lt;\x91\xa1@\xe8(\xa0\n\xec7\x0cSBc\xbdf\x01\xb3\x8cf\x9aT\xfaS\x8e\xe0*\xaeO\xcc\x0f\xad~v~\xd1?\x0bu/\x04\xfe\xdfWW\xd6\xb6\xcb\x0e\x9d\xa9X\xb5\xc5\xbcJ0$yP\x86\xfc\x8eMy\xd9\x9a\xe6\x8c$\xbaI\x1fC\xc3u=\x9e"\xac?\x9a\x0f\xf0\xb3&gt;r\xf8\xb3\xe1].}r\xf7H\x9e\xd6@\xf1\xc8\xce\xc1\x14\xe4\r\xdd\xeb\xc7\xbe"|\x1f\xfe\xd0\xd1\xe6\xb6\xd3`\xf3\xa1\x99\x86\xebv\xc7-\xeas\xfdk\xe4aZT*I&gt;\xe7\xdf\xc7\x0e\xabQW\xecg\xfc:\xf8\x15\xe2/\x0e\xeaq\xea\x97\xb6\xd0\xa0ic*\xab6N\xd0A\xfc?\n\xee&gt;8\xdaj\xb7\xfe\x17\x8e\xcd\'fX\xe1\n\xec\xd9\xc9\xeb\xfd+\x9e\xb5Oo\x8a\xba=\x0c&gt;\x19\xe1\xf0\xce/\xa9\xe0V\x1e\x0b\xd5b\xb4\x9a\xcb\xec2\x08fR\x92\xfe\xe4|\xe9\xe8@&lt;\xd7o\xa2|\x13\xd3g\xd2\xe1\x8e;\xa6\x95U~X\xde\x1c(8\xfa\xd7\xa1S\x17(\xc5$y1\xc1\xf3]\xd8\xf7?\xd9+\xe1\xf3\xea\x1f\x134_\r\xe9\xe7\xe4\x8e\xe1Vd\xf2\xfa\x0c\xd7c\xfbt\xfc3\xd6&gt;#~\xdc\xfe\x15\xf0\xdf\x85%\x91\xae-\xa6\x82\xd2\xe3\xcbl\x81\x0e\xd5\xf9\xce:\r\xc4\x8f|\xfbW~\x1dK\xeazu\x91\xcbR\xb7\xb0\xcc\x12\xed\x16~\xad|\x16\xf8c\xa1\xfc\x1c\xf8k\xa4\xfc;\xf0\xed\xb0\x8e\r&gt;\xd4+q\xcb\xc8yf&gt;\xe4\x93]`\x198\xaf\xa5\xa3\x1eX\xd8\xfc\xd7\x11Y\xe21\x13\xa8\xf7m\xbf\xbc\x90\x0c\n+c\x12 \xa79\x14P\x04\n\x0b\x1c\ns#\'Z\xcc\x06\xd1@\x05|\xb7\xff\x00\x05\x15\xf0\x94\xda]\xdf\x85~0i\x903Mc\xa8\xad\xa5\xd3\x0f\xba\xb11\xea\x7fZ\xe4\xc7\x7f\xbb\xb7\xda\xcf\xf1=,\xa6N8\xf8\xf9\xdd}\xe8\xf9k\xe3G\x87mt\xff\x00\x1f\xcd\xaf\x88#{mF\x14u*\xbc\x03\xdcW\x9cx\xef\xc2\x9a\x1f\x87m[\xc4\xf7\xd7Q\xc3n\xb0\x97\x91w`\x01\xfe5\xf18\xc5|\\\xd7\x99\xfa\xc6W9K\x07\x07\xd7o\xb8\xc5\xf8}\xadx{\xc5\xba\x1ajzf\x96\xc26\x93\xf7sI\xff\x00-\x13&lt;0\xfa\xd4\x9f\x16,-\x05\x84/5\xb9\t \xdaO\xa8\xf5\x15\x95*|\xb5\x11\xeb_\x9a\'\x8e\xfd\xbfD\xb0\xf14:F\xaa\x92C\r\xc4\x9b!\x95\x9b\x8d\xd9\xe3?Z\xf5\r\x17C\x83E\xdb#F\xad\x06\xd2c\x90\xb6q[V\xd2I\x9cq\xe5P\xba=\xb7\xf6$\xd2\xad\xe6\xf8\x99q\xae\xe22\xb6p&lt;\xbb\x94u8\xc2\x7f3\xf9W\xa6\xfe\xc6\xbf\n\xf5\x0f\x8b\xdf\xb6\xef\x8a\xbe*k\xbaYm?G\xbeo\xf4\xa6B3$$,Q{\x8d\xc0\xbf\xbe+\xe90\xb4\xdf\xd5\xa9\xdb\xab&gt;\'2\xad\x18T\xaf6\xf6\x8d\x97\xab?AS\xa6jP;\xd7\xb9\x08\xb5\xb9\xf0+`\xa78\x0b\xd0V\x80F\x80c4P\x041!\xce\xfc\xd3\xa5B\xfd\x0fJ\x9bh\x04%XrV\x8a\x90\x0eO\x00T:\xdf\x864\x0f\x15\xe9\x12\xe8~%\xd1\xed\xefmf\\Kou\x10uo\xc0\xd4\xca\x1c\xf1\xb1Q\x94\xa3$\xd1\xf9\xb9\xfbh\xe9\xb2\xf8K\xc6\x9f\xd8VP\xe2;i\xa6U\x8dT\x80\x17w\xcb\xf9\n\xf9\xd3\xe2f\x9fw\xe3\xe5\xb0\xf0\x1b]\xb2\xc1r\xc5\xaf\x19\xbbB95\xf0y\x96\x99\x9bK\xb9\xfa\xe6G)\x7fg\xc2F\x95\xdc\x0b\xe1\xab\x08-\xbc4\xb1\xc3\x05\xbc+\x0ci\x1a\x0ca{V?\xc4\x8f\x8bw\xba\xcd\xb2\xe9\x89a\x0c\xb7V\xd0\x88\xe1]\x89\xb4~\xb5K\x0e\xe7f\x99\xe8\xca\xb3\x8e\x87\x99^i\xb7\xde&amp;\xdc\xbe1\xb6\x89\x9b\xa4On\xb8\xdb\x93\x90F;\x83^\x93\xe1[\xd9\x07\x86\xff\x00\xb1u\x06\xfd\xf4`\r\xd8\xfb\xca?\x88\x1f\xca\xa7\x17\xee\xb4:r\xbd6\x99\xee\xdf\xb0\xdd\xac\xf3\xeaz\x95\x85\xba1y\xa3U]\xb9\xe4\x93\x80+\xf5\x1bC\xf0\xf6\x99\xe1\xdd6;=2\xc2\x18\xbfv\xab#E\x08S!\x03\x1b\x8e:\x9e+\xeb2\xbf{\x0b\x1b\xf9\x9f\x98\xf1\x1b\x97\xd7,ZU`\xb8"\xa4\xc1\x1dEz\xc7\xce\x85:NW\xf1\xa9\x93\xb2\x01\xb8\xc0\xc0\xa2\xa9l\x04j\xa1F\x05\x14\x00\xd9\xbe\xe55"F\\\x9a\x9e\xa08D\x8ar(r\xe0eE&gt;\x80|7\xff\x00\x05#\xf0\x86\x95k\xe3\xd8\xf5\xbb\x19\xa1\x96G\x89^\xea\x14o\x997\x0cs\xe9\x92\x0f\xe7_\x18\xfcH\xd3\xe6}\x19o4\xeb\x96\x86\xf2R\xd0G"\xff\x00\x06q\xcd|\x1eu\x0fg\x99_\xbd\x99\xfa\xa7\x0fVu2\xa8\xb3\xcb\xf5\xf3\xf1\xe3\xc1\xb7\x8bgi\x7fo\xaaX\xc8\x01\x8d\xbe\xcc\x16E~8c\xc8\xc7^p;V~\xa3\xe2\xdf\x11\xd8\x93t\xfa\x06\xa1\xf6\xe9\xa3\xcb+$[wt\xc7\r\xd3\xf0\xae\xbc?\xb1\xadN\xf7\xb1\xeaJ\x8e2\xd7\x8aO\xd5\xd8\xe5\xf4M_\xe3W\x8a\xb5\x85\x8bX\xd3t\xfb\x0bT\x97&amp;E\xde\xce\xd8\xed\xd4W\xbeZ\xe8\xf1M\xe0+mKz\x9b\xc8\xefAm\xab\x8c)\\\x11\\8\xe9S\x8c\xac\x14}\xa7+\xe7V=\x9b\xe1o\x8d\xae~\x03\xfc\x05\xf1\x7f\xc6\x9d\x18F\xda\xa6\x8f\xa6\xc9q\xa6\xac\x8b\xb8&lt;\x91\x80\xc3#\xb8\x06\xbe\xe2\xff\x00\x82{\xfe\xd9\x03\xf6\xc6\xf8\x11c\xe3\x8db\xca\x0b-m`\x8c\xea6\xd07\xcar\xa0\xefQ\xd8\x1c\xf4\xed_U\x94\xe9\x83\x81\xf9\xcf\x11FO\x15)&gt;\x8c\xf7\x8brI;\xc5L\xfd+\xd6&gt;t\x8c\xb7\xcd\x81R\xaf+\xcdEO\x84\x08\xa4\x90y\x9eZ\xf6\xa2\x9c~\x10\x1bEP\x11\xb73\x00jN\x9c\x01H\x07&amp;;\x8a\xe6\xbe*\xfcE\xd2~\x1axN\xe3\xc4\x17\xe5ZUR-a\xfe\xfb\xff\x00\x850\xdc\xfc\x9c\xf8\xe7\xfbE\xeb\x17\xdf\xb6l~\x1b\xf1\x0e\xa9\xe6\xa7\x8a\xb4\x1b\xb4xf\xe9\xe6\xc4VD\xc7\xa1\x0b\xbc\x0fc\\\xed\xcd\xb4\x9a\x96\xa1\xf67\x9flq\xcb\x94V\\\xfc\xde\x95\xf0\xfcE\x1f\xf6\xa8K\xc8\xfd;\x85el+\x8f\xa1\xa9\xfd\x8c\x8bo \x9dSv\xd1\xb8\x91\x9c\x9f\xa5r\x1e!\xd0L\x9b\xee\xb6*\xaa\xfd\xd3\xf6q\x8f\xady\xf8z\x92\x8c,}T\xbb#\x11\xb4\xc8\xd0\xab\x83\xb9\x99~V\xc7CV?\xb5`\xd2\xb4\xa6\xd1\x12A\x1c\xd36\xe6\xdc\xc7\x9es\x9a\x9a\xde\xfd\xaes\xd6\xf7\x11{\xe3\xef\xc4\xfb\x9f\x0f\xfe\xc8\x9e.\xb2\xb3\xb9\xfd\xf1\xd0^\x18\xc6?\x89\xddw\x13\xf8\x7f*\xf5o\xf8!\x8f\xc5{\xdf\x0c\xa7\x87\xed\xf5\x9b\xb6\xb7\xb3\xd4\xac\x04w\x1b\xbe\xee\n\xe4W\xd8d\xd2o\r\xa9\xf9\xf7\x10C\xf7\x8f\xd0\xfdt\xb3\x92\xda\xf6\xd9o,&amp;Yau\xdc\x92F\xd9\x04z\xe6\xa4?:\xfc\xa6\xbd\x88\xca\xe7\xc7\\\x8d\x86\xd6\xebRo\x019\xaa(\xaa\xa0\xc8K\xd1B\x02T\xfb\xd4\xb2\x1crh\x02?1z\x9a\x1ah\xa3R\xf2\xc8\xa8\xab\xf7\x99\x98\x0cR\xb8\x1c\x1f\xc4\x0f\xda{\xe0\xf7\xc3\x83\xf6}K\xc4kuw\xff\x00&gt;\xb68\x91\x87\xb1#\x81\xf8\xd7\xcc\x7f\x18\xbe0k\xdf\x16&lt;Eq\x7fq1[$\xc8\xb7\xb6\xdd\xc2\'o\xc6\x935\xa7\x16~r\xff\x00\xc1Ag\xbc\xf8s\xfb@|9\xf8\xa3\x1c-\xe4\xdbx\x85`\xb8u\xeac\x91v\x11\xfa\xd7s\xacj-$\x8b\xa8G;$\x83\x0c\xa7w\xe2\r|g\x10\x7f\xbcA\x9f\xa2p\xdc\xedA\xfa\xff\x00_\x91f\xe7\xe2\x94v\xd6\x9en\xa9\x02\xcc\xd8\xc7\x98\x8d\xf2\xb0\xfe\x95\x83\xae|^\xba\xd6\'Im\xf4\x89\x1a5Ll\x8e\x13\xc0\x15\xe7\xd1\xe5Q\xd4\xfa\x95Z1\xdc\xe5f\xf8\x92\xcd\xa9ypB\xb6\xea\x0f\xcd\x1b\x0ej\xac:\xea\xdf\xebM\xa8\xb4\x9et\x9b\xb0\xbf\xdd_zU9e+\x1c\xf5g\xcfvq\xbf\xb5\xdf\xc4\xa3\xa2|#\xb8\xf0\xf5\xa4\xcc\xd7:\xc4\xd1[,q\xfd\xe6\xdc\xe3 {\x9a\xfak\xf6=\xf0\xb6\xa5\xf0\x9b\xc0\xba\n\xc5\x11[\x8d6\xca#\xd7\x82B\x8e+\xea\xf2X\xcb\xea\xe7\xc5\xf1\x07\xfb\xc2^G\xd6\xde\x00\xfd\xb0\xbci\xe0\xdb\x11\x07\x87\xa4X\xa3\xf3&lt;\xd9,\xee\x17|dw\x03\xfb\xbc\xfaW\xae\xfc6\xff\x00\x82\x88x?\xc4\r\x1d\x8f\x8e\xfc;q\xa6\xcc\xcd\xb4\xdc[fT&lt;\xe3$u_\xd6\xbd\xae[l|\x8c\xe8\xdbc\xd3\xd3\xf6\x98\xf8\x04\xcf\x14s\xfc[\xd0\xe1\x92a\x98\xe3\xb9\xd4\x127\xfamb\x08\xae\xd3L\xd64\xcd~\xc2=CE\xbf\x86\xea\xdaa\x98\xe6\xb7\x90:\xb7\xe2)\xf2\xc8\xe7&amp;A\xe5|\xb4R[\x01\x00\x95\x9b\xe7\x075\xc6\xfca\xfd\xa1\xbe\x0f\xfc\x0e\xd1\x9bZ\xf8\xa3\xe3\xab\x1d-\x15IX%\x98\x19\xa4\xff\x00v1\xf3\x1f\xca\x85\x19KD\x07\xe7\x7f\xed\x87\xff\x00\x05\xcd\xd7.\x05\xc7\x84\xbff}#\xfb:\x15fS\xe2\x0b\xe0\x1ag\xed\x94N\x88&gt;\xb9?J\xf9\xa3\xc0\x9f\xf0X/\x8f\xf6\xda\xd2\xe8\x7f\x1a|Oy\xae\xe8w\x0f\xb6i\x96C\x1c\xf0\x0c\xfd\xe1\xb7\x01\xc0\xf4"\xba\xde\x161\x83or\xa3\xbd\xcf\xa6\xb4\x1f\x17x_\xe2\x1f\x87!\xf1\x97\x82u\xb8\xf5\x1d&gt;\xf1wGq\x04\x81\xb9=\x8f\xa3\x03\xd4\x1eEw\x1a|\x11=\x82\xc9\x13\x1c\xe3k\xee\xf5\x1d\x7fZ\xe3\x91\xd4\x8f\x9f?o\xcf\x82\xf7_\x13\xfe\x15\xcc\xda4\n\xda\x8e\x97"^\xe9\xe5\xbf\xe7\xacl\x1c\x0f\xc4\x80+\xc8\xbe\x12\xf8\xee\xd3\xe2\xdf\x80b\xd5\xa5\x87\xcb\xb8Ba\xbc\xb7?~\xdeu\xe1\xd0\x8e\xd85\xf2|EM\xda3\xec}\xa7\x0c\xd4\x8f,\xa0\xf7\xdc\xa7\xe2\xdf\x06\xc1w4zu\xf6\xa7q\xf6q&amp;\xe6\x8e9\xb6\xff\x00\xf5\xeb\xd0\xbc7\xe1\x0f\x85p\xf8Y`\xcc\x92L\xab\xce\xeb\x83\xc6{{\xd7\xcb\xces\xe5V&gt;\xb1S\xe7\x91\xe5\xbe6\xf0\xef\x87t{\xab\x8dGG\xb7\x1f\x7fk+6\xe1\xf5\xaa\xfad6\xda\x7f\x87\x1b\\\xd4\xa6\xf2b\xdb\xbb\xcc\x1d\x14z\x9a\xda\x87&lt;\xda]\xc9\x92QL\xe4~\x0e|1\xd4\xff\x00k\x1f\x8f\xb6\xbe3\xbc\xb6x\xbc\x1f\xe1[\x8504\x8b\xf2\xdd\xdc/\xd7\xb0=k\xee\x1d\x1c\xdbi\xf6\xbe@\\/\xdd^+\xf4,\x05?cB(\xfc\xef0\xad*\xd8\xa963_\xf1\x16\x9f\xe1m"\xe7\xc4:\xc5\xf46\x96v\xf6\xacf\x92i\x02\xa2\x8c\xf5\xc9\xaf\x93\xfe;\xff\x00\xc1K\xc4fO\t|\t\x8dc\xeb\x14\xba\xf4\xcb\xf3\x11\xd0\xf9J\x7f\xf4#\xf8W\xadN7\x92&lt;yH\xf0\xfd\x1f\xe2\x1f\x8au\xedFMk\\\xd6\xee/.&amp;\x93s\xcdq1f\'\xeak\xe9\x1f\xd9\x9b\xfe\n\'\xfbB\xfe\xceW\x11\x7f\xc2\x1d\xe3\xa9\xfe\xc2\xad\x96\xd3o[\xce\xb7a\xe9\xb5\xba~\x15\xdd\xcb\x19S\xe5h\xe3\xb5\xcf\xd0/\x80\xff\x00\xf0\\O\x84~-\xd0\xfc\xbf\x8c\xbe\x19\xb8\xd1u(\xe3\x05\xae4\xf5\xf3`\x9c\xf4\xe0\x1f\x99O~\xe2\x8a\xe1\x96\x16\xa4ed\x1c\xac\xf1/\xda\xfb\xfe\x0by\xe3]^k\xcf\n~\xce\x90\x7fa\xe9\xcc\xcd\x1a\xebS\xa0k\xb9W\xd5A\xc8\x8b\xeb\xd7\xdcW\xe7\xe7\xc4\xaf\x8e\xfe8\xf8\x87\xacM\xae\xf8\xbf\xc6:\x86\xa5y3n\x9a\xea\xfa\xf1\xe5f&gt;\xe5\x89\xae\x8aT\xfd\x92\x0eS\xcf5\xbdp\xddn\x94\xea%X\xafv\xe0\xd6\\~\x1f\xf8\x81\xab\xc0f\xd2|+\xaa^B\xb9&gt;u\xa5\x9b\xc8\xa3\xf1\x00\xd5T\x92\xd9\x95\x18\xf4&gt;\xa2\xff\x00\x82v\xfc\x17\xfd\xab\xfc+\xe2\xcbo\x1aI\xa8I\xa1\xf8GP\x90\x0b\xbd\'R\xdcZ\xf0t\x0c\xb0\x9eP\xfa9\xc7\x1e\xa2\xbfB\xb4\x18\xb7\xe9\xfb6\xed\xdcI\xc7\xa6My\xb5\x1co\xee\x9b\xa5c\x91\xf8\xc1\xe2\xaf\x00x\x17\xc3\xf3_\xf8\xff\x00\xc5z~\x93g\xb4\x86\x9a\xfe\xe1c\x18\xc7\xfbG\x93_\t\xf8\xcbQ\xb2\xf0\x06\xb9q\xfbA\xfe\xce\xfa\x84&gt;%\xf0\xbd\xe5\xf3G\xe2k]\x19\xbc\xd1\x13\xa9\xc0\x9f\xcb\x1c\x86\xc0\xc1\xe3\x91\xcdy9\x96\x17\xebT\x1cO_)\xc6}W\x10\xa4w\x1aO\xc7\xef\x84\x7f\x17\xb4\x88u+YbY\x98\x01"\xc6\xc1Y\x08\xf5\x1f\xfdj\xb1u\xa6\xf8[X\x83\xcf\xd3\xbc]\xfb\xa5e\xdf\x12L\xa3\xbfC\xef_\x08\xe8\xce\x9c\xb9Y\xfa4e\x1a\x94\xd4\xe0\xce?Q\xd1\xf4\xbdk\xc5\xb0\xf8oO\xd4Y\xed\xd5L\x97I\x0c\x87,\x07PNq\xfe5K\xe2w\xc3\x8dk\xc7\xf6K\x0f\x88\xfcO\x0f\x84&lt;\x1bdquu#my\xe3\x18\xe5G\xe9\xb8\xf1^\xae[\x86\xfa\xc6"7\xd9\x1ene\x8c\x8e\x17\n\xdb\xdd\xe8v\xff\x00\xb2\xbf\xedW\xf0\x13P\xf1\x07\xfc(\x8f\x85\x9ae\xcd\xbe\x9bcg\xb3L\xd6&amp;\x87\xcb\x8bP\x90\x13\xb8)8\xdc\xd9\xe7?\xc5\xda\xbe\x8c\xd3\xa0{\x85\xf3\x1e\x1f\xc0W\xdc\xc2*6G\xe7\xf2\x93\x95\xd9O\xe2\xbf\x80|=\xe3\x9f\x85\xba\x9f\x86|_b\xb7:}\xe4k\x14\xf17\x1cn\xceA\xecE|\x0f\xe2_\xf8\'W\xc5A\xe2k\xe7\xf8Q5\xae\xa9\xa4\xc5!k\x18\xe5\x98G&gt;\xdf\xee\x10p\t\x1e\xb9\xe6\xbbiJ1\xdc\xe7\x9cd\xcf3\xd7,\xfcK\xf0\xdbZ\x9b\xc2\xbe)\xd2f\xb1\xd4-\xdfl\xf6\xd7\x11\x95e&gt;\xbc\xf5\x1e\xf5sG\xd6\xaf.d\xf3e\x98\xfa\xaa\xe7\x81]\x91\x9729N\xbbM\xd7\xa5\x8e=\x8c\xe1\xbb\xf2\x01\xfetU\xdd\x81\x93\xe2MfK\x9b\x83\xfb\xcc\xfa\xfbW#\xac\xdf\xc8\xd2\xf9A\xbe^\xbfZ\x89\x01\xf4g\xec\x07\xfb\x11j\xdf\x17\xbcAi\xf1S\xe2\x86\x9c\xd6\xfe\x15\xb3"KK[\xb0U\xb57\x07\x8c\x0f\xf9\xe6;\x9e\xfd+\xf4*\xd3\xc3z&amp;\x93e\xfd\x99\xa3\xe9\x16\xd6v\xea\xb8X\xed#\n\x80{\x01^uj\x9c\xd2~F\x94\xfb\x997\x9e\x1c\x9e\xc6\xe1u-&amp;\xed|\xe8\xdbz\xab\x83\xb7#\xa6k\xcd\xbe%|D\xfd\xaa4\xf4\x97N\xf0\xae\x91\xa7\xdb@AU\xbc\xb5\x88\xc9(\x1e\xa0\x1e3\\\xf1\xe5\xeam)]\xe8x\x11\xf8i\xe3)\xbcd\xde3\xf8\x9f}}\xe29\xe4l\xcdo\xad&amp;\xe5Q\xe8\x83\xa2\x8f\xa5w\x16\x7f\x07&lt;\x07\xa8\xd9\xcb}\xf0\x9d\x13\xc3:\xa5\xd1G\xb8\xb71\xff\x00\xa3\xdc\xb2\xf6`=zg\xae\r?t#+jr&gt; \xfd\x99&lt;)\xe2O\x13\xdc$\x9e\x1dO\x0cx\x89\xa2\xf3"\x92\xcd\xb1\x1d\xe1\xee1\xd1\xbdr9\xc7Z\xf0\x8f\x8b\x1e\r\xf8\xaf\xf0\x0b\xc4F\xebS2\\\xe9W2|\xb7p\x93\xb5$&lt;\x1d\xc3\xf8k\xc5\xc6e\xf4\xe5\'Q-\xcf\xa1\xca\xf3iJ&gt;\xc5\x9e\xad\xfb:E\xa4Z\xf8:\xef\xe2\x9f\x8a\xee\xc5\xbe\x99d\xad%\xd5\xd4\xcb\x85\x90\x8e\x88\xa7\xf8\xbd\xea)&lt;3\xad~\xd4\x1a\x97\xf6\xef\x8c!\xb8\xd3|\x17\x1c\xdb\xec\xf4\xa9&gt;Y\xb5"\x0f\xdf\x97\xfb\xa9\xe8\xbe\xfc\xd6\xb9N\x17\xd8\xd3r\x92\xd5\xbf\xc0Y\xd6*8\x8a\xd1\x82\xfb+_Vo\xea\xbf\x034\x9d^k{\x7f\x08\xe8+\xa7\xc3k\x81\x13\xdb.\xc6\\t\xc1\x1d+\xd6\xbc\t}\xf1K\xc3zlv\x1a\x87\x88&gt;\xd0\xb1\xae\x16K\x88\x837\xe2{\x9a\xf5\xe2\x971\xe0\xe8\xa4n\xc8\x9e)\xf1hM6\xff\x00W\x92h\xd8\xe5\x95F\x14{\xe2\xbb\x0f\x08\xf8&gt;\xcf@\x8d|\xb97I\xc6\xe6j\xb7n\x83R\xb9\xe6?\xb5\xef\xecW\xa0\xfe\xd3ZZ\xf8\x87B\xb8\x87N\xf15\x8c{m.\xdd~[\x95\xff\x00\x9erc\xf4n\xd5\xf9\xf7\xe3\x0f\x06x\xc3\xe1W\x8b.|\x13\xe3}\x1ek\x1dB\xd1\xb6I\x0c\x8b\xf7\xbd\x18\x1e\xea{\x1a\xe9\xc3\xd4\xd3\x94\xe6\xa9\x1b1\xfav\xa4\xc2&lt;\xb4\x9f\xad\x15\xd8fW\xd6o\x1f\xcf\xf3?\xbd\xe9^\xc9\xfb\x00\xfe\xcdzO\xed\x1b\xf1~I\xbci`\xf3x\x7fA\x88\\\xdf\xa0\xfb\xb3\xc8O\xee\xe2oc\xc98\xea\x05s\xd5\x97,[\x1a?J\xc7\x87!\xd3,c\xd1\xf4\xbd\xb0\xda\xc1\x1a\xa40D\x81V5\x1c\x00\x00\x1c\x0fj\xa7$Z\xad\x88\xdbi&amp;~\xb5\xe6\xe9\xd0\xeb\xa7f\x8a\x92x\x87P\xb7o/P\xd3\x97o\xf7\x94u\xa7\xa6\xb5\xa7\xcd\xc9\x81\x96\xb2b\x94Tv#\xbd\xb3\xd15\x05\xfd\xf6\x9f\x1b\xee\xea\xcc\x83&amp;\xb1/\xfe\x1c\xf8F\xfc\x97\x8e\xd4\xc3\'Uh\xdb\x1c\xd2\xd4\x93\x9f\xf1o\xc3\xef&gt;\xc8\xd8M\xae\x0b\x88P\xee\x87\xedJ|\xc8\\r\x1a9\x17\xe6B\x0f\xd4\x1fJ\xf3\xff\x00\x88\xda\x07\x86\xfcy\xe1k\xaf\n|W\x87\xfd\x16\xde\x10\xcd\xa9Y\xe05\xca\x02&gt;FR1\xb8\xf4\xc8\xeez\n\xa7\xefDqr\x84\x94\x97C\x92\xf0\x9f\xc2x~2-\xbd\xae\xabh4\xdf\t\xe9\x12\x88\xf4\x9f\x0e\xda\xfc\xb1\x10\x84a\xe4\xee\xecq\x93\x9e\xfe\x95\xec\xdaW\xc3=\x0fO\x84[Z\xdb+"\x0c*\xb7AE\xf9v.S\xe6\x93\x91\xadm\xe1[[X\xb6An\xab\xf4ZC\xe1\xaf6]\xa8\xbe\xe6\xae/\xab\x12\x95\xcb\xfan\x8d\x1d\x84\x7f\xbb\xf9X\xfd\xe6\xc7Z\xd2\xb6,\x00QN2\xd6\xe2\x8fR\xfd\x8c\x85\x0e\xcfZ\xf3\xef\xdac\xf6V\xf0\x1f\xed1\xe1\x1f\xb1\xea\xd1%\x9e\xbdj\x84i:\xc4q\xfc\xf1\xb7\xf7\x1f\xfb\xd1\x9e\xe3\xb7Q\xcf]c&gt;Y\xa6D\xb5?3~ \xf87\xc4\x9f\x0b\xbcc\x7f\xe0/\x15\xd8\xfd\x9fP\xd3n\x0cW\x11\xee\xce}\x08=\xc1\x1c\xe6\x8a\xf5"\xee\xaes\x98\xf7\xf3\xbc\xd6H\xc7\xae\xe2+\xf5#\xfe\t\xf3\xf0\xbbG\xf8W\xfb5h\xf2Z\xc5\x1b\xdd\xeb\xf1\xff\x00h_\xdc \xe5\xd9\xbe\xea\xf3\xfd\xd5\xfe\xb5\xc9\x89\x95\xa3b\xa2{d\x92#.\xd5^\xb5Y\xd1A\xce\xda\xf3\xcd\x88.!\xb7\x90\xedxA\xac\xdb\xcd6\x1e\xc0{{T\xc8\n\xfeN\xd1\xb35\r\xccn\x06#l\x1cR\xb9I\x99\x9a\xd5\xa2[iW\x1a\xa5\xdf\xef\x16(\xcbm\xf5\xc75\xe3\xc2\xc6\xeb\xc6\xb7\xf7V\xb7\xd3*\xd9\xdc}\x9d\x04?\xdd,\xc5\x89\xfc\x80\x14\xe2Rg\xa7h\xde\x06\xd2|+e\r\x9e\x95\x18\x8e4m\xaa\xa3\xe9\xd6\xb6\xadl\xa1\xdb\xbdF\x0fz\t\xb6\x84\xe8\x8a\xa3j\xfd\xe3\xdc\xd6\xbf\x83&lt;%/\x8c\xa6\xba\xb6\xb5\xbbX\xa5\x85U\xbfx\xbf)\x04\x81\xdb\xf0\xaf/&lt;\xcd\xa3\x91\xe55q\xd2\x8bj\x9a\xbbKv\xae\xafcL=9V\xae\xa9\xae\xa2x\x93\xc2W\x9e\x1aO\xf4\xa9\xa1\x93\x9c~\xec\x9f_qY\x91\xc6\x02y\x83\xbds\xf0\xee}G\x88\xb2\xf5\x8b\xa5\x07\x14\xfa;_\xf04\xa9FXy86M\x13,3F\xad\x9c\xbf\xa5k\xc0\x1a\x0eA\xf7\xaf\xa2\x8c\x8ew\xd8\xfc\xf9\xff\x00\x82\xafxf\xc7J\xf8\xdb\xa5\xf8\xae\x18\xd5d\xd54\x90\'\n&gt;\xf3#c\'\xf0\xa2\xbdJN\xf4\xd1\xcf-$\x7f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -540,6 +602,14 @@
           <t>Abel Ferreira</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x006tEXtComment\x00xr:d:DAEewil2SDw:1926,j:28989272107,t:22061918\xba\xf8\xa7\xb5\x00\x00\x03\x00PLTE\xff\xff\xff\xd2\xd6\xdb\xd1\xd3\xd9\x12\r\x07\xff\xfe\xfe\x0f\n\x04\x17\x10\n\xef\xee\xf2\xed\xed\xf1\x0c\x05\x01\xf8\xf5\xf2\xe4\xe8\xf0\xea\xeb\xef\xe4\xee\xe6\xf5\xf4\xf3\xe2\xe6\xef\xdf\xe5\xee\xe5\xeb\xf3\xf2\xf9\xfe\xfc\xfd\xfc\xf0\xf1\xf4\xe4\xe6\xeb\t\x03\x00\xe8\xe9\xed\x1e\x12\n\xdc\xe1\xea\xf3\xf2\xf2\x16\n\x04#\x17\x0e\x1b\x15\x0f\x12\x07\x01\xf1\xf0\xef\xf8\xf9\xfa\xf6\xf5\xf5\x81Q8\xf8\xf6\xf6\xda\xb4\xa0"\x1b\x16\xf3\xf4\xf7\xde\xeb\xe6*\x1c\x12\x88Y?\xd4\xd8\xdf\xda\xde\xe6\x8c]F3#\x17\xde\xe3\xec\x92aE\x82W@\x03\x01\x00\x85T;\xf6\xf6\xf8\xec\xf1\xf8\xc9\xcc\xd1\xd6\xad\x99\x7fO5\xa7qZ)"\x1c\xee\xf4\xfawI3\xf0\xf6\xfc}K2\xd6\xdb\xe2kF3\xbf\x8a}qL7\xaaw_:83yO7}S&lt;\xd3\xb9\xafD0#\xd7\xbe\xb0\xd3\xa6\x94M8+\xdb\xe8\xe1\xcf\xb1\xa2\xe8\xee\xf7\xcf\xa1\x98\x98hMX:+\xe3\xf6\xf6oB+:*\x1fe@-\xe7\xf1\xea\xd3\xe3\xdd\xd1\xa6\x9fE4+\xd1\xb6\xa6\xd8\xdd\xe4a4"\x9emPP1"\xb9\x81l\xd4\xb7\xa9L\'\x17\xce\xad\x9b\xc9\xa9\x95S,\x1a\xb9\x85{`;)\xda\xc6\xbe\xc7\x95\x8bP?6\xca\xa1\x92\xeb\xee\xf4\xda\xc2\xb5\x1b\r\x05\xaczf\xe9\xf5\xf2\xe2\xf0\xeesH0E"\x12\xc4\x90\x84\xb9\x8dv\xcb\x99\x85\xa3ucW5%\xc1\xc2\xc7Z1\x1e\xd1\x9f\x8e\xe1\xe3\xe6\x9fn[\xe1\xbb\xb051,\x9egT4\x19\r\x98tf\xcb\x99\x90\xb4{ig:%\x95dJ\xc9\xde\xdc\xb7\xb7\xbb\x85[F\x8d\\?\x8ecKC)\x1c\xdb\xed\xec*\x14\t\xb0~f\xba\x9d\x8e_?1\xc5\xc6\xcc\xc6\xa0\x8btC-\xd3\xac\xa2\xce\xd0\xd5\xa2rV\xb2\x86kdE5Y?1\xdb\xbb\xa61)#\xea\xee\xe8\xb2xa\xbd\x89t\xb1\x95\x88XG&gt;\xd5\xe8\xe6\xa0\x80s\xdf\xb5\xa8\xb3~r&lt;#\x17\xdd\xf1\xf1\xbd\x94~\x9e\x89\x7f\xd7\xaf\xa7o3*k&gt;(\xb5\x87r\x93|q\x8cwl\xbe\x99\x86\xb0\xaf\xb3\x9eaJKHD=\x1a\r\xce\xe4\xe2\xe1\xc4\xb8H;4\x8ag]\x83eX\xeb\xf9\xf8\xf5\xfa\xfe\xe3\xc8\xc0\xaf\x8f~\xbd\xbe\xc2vTB\x96gY\xbe\x83qsZP\x9f\x9c\x9c\xab\xa9\xae\x85qg??;++(\xa6jS{la\x89RC\xd3\xc0\xb7a\\X\xa8\x87x\x7fQF|92\xa5\xa1\xa6\xc1\xa6\x96xaVzH,}[H\xc5\xae\xa1\xc0\xd9\xd6qL@{J&lt;\x90_Q\xc7\x91{\x8enb\x8d\x88\x89\x98nV\xa8\x81k\xdd\xdf\xe0\x97YBYRM\xc0\xb5\xb4\x82[S\xe5\xcf\xc8\xe7\xe8\xe6\x96\x91\x93cJ&gt;hSG\xc6\xc0\xbf\xde\xcc\xc7\xbd\x8f\x8b\x82}{\xda\xdb\xddjhfxtrb#\x1b\x88AD\xabi_\xd6\xd4\xd4\xa1\x96\x93\x94\x82}\xb6\xa7\xa0\x9bVa\xa9sqz-$\xf1\xf6\xf2\x97O;\xe6\xd7\xd4\xd1\xcc\xcaO\x11\x0c\x8dD2\xec\xe4\xe0\xaeT;q\xd0yH\x00\x00 \x00IDATx\xda\xcc\x98kLSi\x1a\xc7\x9b\x9cKlb\xe6K\x13\xa6\xa1=\xd5q&lt;\x9b\x9a@\x107\xa3sB\x8c\x95\xaa\x05C\xaa\xa1&amp;-\xab\x0e\x82\x90\xb6KI\xb4\\\x14\xb1b\x95\xa84@\x86ae\x97\x1am\xb8\xc4\xe9\xca\xaa\xa9\x11M\xc6\xf5\xc2\xd8\x06\xed\x98\xd58Y\x19\x11S\'\xa0\x06\x84\xc4\xcb\xc4/\xf3e\xff\xcf{p\xb2\xfb\xfd\xe0\xec\xd3+\xb4\xc9\xf9\xe5\xff\xfc\xdf\xff\xfb\xbc\xd5\xe9\xb4(\xde`0\xf0&lt;\xaf\xfb\xbf)\x9e\xee\x86?\x1cx\xfaj\xf1\xa2l\x1d\xc8\xe8\x1f\xbc\xfa\xc1\xefU\x06zL~\xfd\xfd\xf8\xdc\x83\xf4\x8bLz\xf4"\xfdC\xf7\xd9&lt;\xd3\xef$\x1fo\xc8\xfe\xf4\xcd\xb1\x99\xb4\xcf\xe1\xd8\x8cr8&lt;\xc3\xa3/_\xbd\x1d}1\xf3l\xf2\xd5/\xcf\xde\x9c\xfa\xe4s\x03\xaf\xfb\xa8\xc2\xa1Y\x86\x03\x17gf3&gt;\xdf\xe6\x9d[\xff\xba\xd9\x11\xc1\r5\x1c\xf3\xa1b\xe9\xf3\xa3\xbe\xd8\xe8\xcc\xf8\xaf\x06\x9e\xffxX\xb8\x96\xe1\xe9T\xc6\xe3\xf0l\xf6m\xfe\xdb\xf3\x17\xcf\xb7\x12\x92+\xe2B\xe5\xe2\x01\xdd&lt;.|\xe6\x8b\xcd\xbc\\\xca\x1b&gt;\x16\xd5\xd2\xc9}s\xa1\xa8\x07\x85\xfe\xf9&lt;&gt;t\x10H\x83D\x94\xcb\xca\x9a\xcb\xf8\x1c\x1eOftd\xe4\xd7%\xfc\xc7\xe8\xdf\x9f\xc6\x13\x8al\xc5\xd5]j\xef\xc0\xa2\xe2X\xcdV\xb5rqg\x0f\x17\xda\x9a\x9e}\xfbf\xc1\x153\xf0\xffL\x8aF\xc9h6\xb3KC#\x15\xc7\xcc\xca\x18\x08\x18Q\xf4\x8e\xfe$v\x87/\x91\x99{\xb3\xc0\x06\xe3\xf9c)\xa3$\xe1\x8a\xd41\x90\xb9\xe6\x89\xacf\xa3\xc9d\x12M\x82\xc9b\xb1\xe0]@\x14E\xe2\x03\xd9\xf0pf&lt;\x9b_@0^\xb7\xf8XH\x04\x94,\x9b\xad\n\xf5J\x81VF\x90p(A\xaf\xd7\x0bx\xd5g\xe9\x05A\xe0D\x8e\xbei\x8dFs=\x9e\xd8\xdb\xec\x85\x94\xeb\xcf\xb3\xb2$+\xb2d\x86\x10\xb2YV\xacx/\n\xfa\xac\xfc\xfc,0\xe9\xb3\xb2\xf4\xa0\x13\xb2\xf2\xc1E\xa0\x92$G\xa9&lt;\xc3\x99g\x0b\x16\xae\xfc\xa2\x8bII\x96$\t\xee\x91e\xf0\x88\x10Mb*ee\xe5g\x81\t\xaf\xe0\x11\x84|\xa6\x97@\\J4\x1a\x8a\xda]\x89\xb9\x03K\x17\x88\xea\x8b\xd9\x14\xc7\x1cc\x84\xbb8\xba\xaa\xd9*\x89\xd4A\xbd\xde\xa2W\xf5bmdr\xe9\xb3\x04b\x83\xb8)\xc5\x1e\xb2\xa7\xc7_.\x8c\\_$e\x91\xb0$\xd2\x0b\xee\x96\xcc\xb2U1\x93\xc3\t-\x10\xd0\xeb9&amp;\x15L\xa5\xcf\xcf\xd7\x93~`\xe3H\xd3\x90\xdd\x9e\x99\x1b\xf9d!\xb4z\x9a\x969\\\x92\xa8\xb0\xe8\x02F3\xda\x13U@\xcaYLl\xe9\x05,\xe0\x82\xe1\t\x0br\xc1n\xb8\xe5\xe7s\x02:\x19\n%fg\x16B.\xc3\xbfd\xa6\x044R\x03\xc9\xe5R\xe0/\x10\xa0,\x802\x99,\xac\x85\xa4\x18\x99L\x85\xca\xcf\x17\xc0\t\x87\r\xa7gF&gt;\xd3\x9ekQZ\xa4\xb5EYdU\xa2\xa1a\xd8%\xaa\x88\x82z\xe9|A4\x1bE\x06\x06&amp;\x81c&amp;\x9b\xff\x88\xdc/\xca\x8a=\x91\x9eY\xac\xfd\x103%\x91V\xa0\x82\\\xb4\x12\x7fK\x06\xf5\xd2\x1c\x92S\x04\x18\x99\x9fS\xb1\xfe\x8b\x8b\x93\xcd\xd1d"\xbdO\xebH\xe5\xff\x12R[h\xa4k\x03\x8aLE\xb1\xc0\x02\x8b\tB\x0b4@\x0b\x80\x8cF/\x96\x0f\\\xf8T2+v{\xe2{\xad\xb1\x0cS\xa0\x12DD\x95\t9*\xcbx\xb50W!\xac(\xdc\xc1\xc2\xb6B\xda\x80X\x05,\xd4R\x8aYr\x97^4\xcaQ%1\xaeu\x0f\'3\x94\x8eL\xab\xf9\x88\x10\x99\xaf\t\x88\t\x84-\x9a\xf6nk{{\xfb\xfc&gt;\x1d\xc0\xd2\x84\xd7,\x0c]\x14\xcd\x8a59\xab\xf5 qL&amp;\'3W#=\xc5\x0fb\xe9\xd5]\x99\x98\xb0:\x07\x07#\x91\xc8`d\x90*\xd2\xd2\xd2\xd2\x8e\xa6\xa2\x18&lt;\')JtJ\xa7\xe9\x0ed\xf8\xe3\x9c\xba\x97p$\x0c\xf9\x9e\x02\x14\x17C|A\x9e\xf6\x96\\kK\xee`dgc\xf56\xdc\xaa\xab\x1b\xb7m+\xdd^\xbd3\x92\x0b\xb0\x80\x89}\x91\x93\xc4\xa8\xfd-\x96\x8e\x96\\\xafR\xeaH P0\x89T$\x1bA\xb5\x0c\xee\xdd\xb5{gccc\xf5\xba\xf5\x1bs\xdarZ\xf3\xda\xdaV\x1e\xbf\xf1\xe4Ik\xce\x86u\x8d{\xa9\xab\xe478\xd3\x08o\x19\xb4\xc4\xe2u#\x94\x0elpa[\xb0\xc0\x1c\x15ho\xb9\xb4w\xf7\xf6\xa3GK\x1f=\xbaw\xef\xf8X\xc3DOG\xc7P\xcfP\xcfDO\xdd\xd9\xba\xba\x9e\xc2\xb6\x8d\xa5\x90l\x10\x93\x8fh\xd2\x0b\xb2\x92\x98}\xa9\xa9X\xbaYA\xafB\xa9`\xac}\xed\x97\xa0\xd3\xd1s\xa5\x05k\xee\x8c\xddhn\x98\xa8\x9a\xbep!\xe8\xf5\xfb\xbb\xba\xba\xe8\xa9\xbe\x1e`O\x8eo\\\x87^\x82\xcb"rr\xca&gt;3i\xd0\x16\x8b\xf2\x81m)z\xc1\x02\xad\x02\xc6\x96\xbd\xbb\xf7o/-X\xb6r\xc5X\xc3\xfb\x1f\xaal^\xa7\xbb\xc2\xe9t\x97T\x94TT\xe0Q\\\\\xdcT\xff\xd3P\xe1\x8e\xb6\r\xeb\xaa#V\xa3D\x0b84\xfb\xb5\xa6\xf9\x90P[\xc7\xd6:Iel\xb9\xb4k\xff\xd1s\x05\xabV\xb4\x1ej\xae\xad\x9a\x9e\x9e\x0e\xfb\xdd?\xba\xdd\xeenV\xf1\xf8\xf2\xd5T\x95]g\xeb\n\x9f\xb4]\xdf\x1a\xc1\x00D;\xe3\xec\xa4\x96M\xfc&lt;\xa1\xee\xbf\x88s\n\x05\x98\n\x9e:W\xba\xf6NksC\xc3\x00QMw\x86\xfd~\xa7\xd3\xefww\xbb\xcb\xcb\x88\x0b`\xb8w\xd5\xd7M4\xb4\xad\xdf\xea\xb0B-l\x8c#K\xb5\xe4J\x8bX\x85*\x17\xa4j\xbf\xb4\x0bT\x05\xcb\xf2\x0e}Y;00Pe\xb3\x05\x83\xc1i\xbf\xd3\x1f\x0eS+\xe3\xdd\xf1\xb2\xe5T\xbd\xb8U@\xb1\x89\x87\xcf=\x18\xf81w\xd9\xd3\xa7\xb4\xcc\xad\x04\xa6Q\xceB\xdebR\xa1\x81\xa5\x05\xab\xf2\x9ak\x07\xaa\xaa\x80\x85\x02Y\xd8\x1b\xac\x0f;\xd1\xc6\x92\xee\xb2\xf8\xf22\xdcz{{\x01WQy\xed\xea\x0b\x87\xcb\x8a\x01MINeki\xae\x84H\xd3\xde\xffP\xad\x18;\t\xaa:pU\xd9\x88\xca\xeb\r\x06\xeb\xfdn\xa7\xdbI\xaeR\xd5B\x95\xf4\x96W\\;|\xd5\xe3R\x14\xc2\xd2\xf6\x1cKM\xe4\xa8\x85\xccV\xa0\xda\x00\xad\n\xa9}6\x1b{\x02\x17\xa4B\x85\xeb\x9bV\xbbU.\x12\x0b\x8f\xa2\x92\x0b}Wc\xb9\x98\xd1\xa2\xa1\x84\xb6X\xb3X\xdf\x98\xf8\xb2L\xbfi\x95\xb7\xa5\xb0\xe3+\xf2\x14\t\x15\x84VN\xacC\xb7\xd3Y_\x0f\xae\xe2y\xbd\xca\x19V\xd9\x85\xbe[\xcf\x1d\x98\xb019?\xd5\x14k\x0e\xde\xa2cC\x80Q\xedY\xb3*\xaf\xb5\xb9\xb6cHm\x1f\xf5\xcf\xeb\xf5\x86\xdd\xee8\xc0\x9a\xea\x9b\x9a\x9a\x8aW\xab\x9d\x04\xd5\xe5\xef\xca*\x7fx\xe0\xf3(Q\x9c\x7f\x12\x93\xdac\xc1Y\xed\x83\xa0\xfaf\r\xb4\xda\x01\xb1N\xdbN\xdf\xb4y\xc3^,\xc0p\xd0\x1bfz\xb9\xddM\x08\xd2\x0f\xf6\xea-\xba\xfc]My\xc9\xb5Q_H\xc1\xf1\'\x95\xd4\x12\x8b\xd7\xcd\xa8g\t\x93u\xef\xee\xa3\xdf\xac=\x91\xb7\xe3\xcb\x8e\xaf@e\xab\x82L\xe1\xb03L~\'k\x11\x15\x98\x10\xf1\x1f\xecUt\xb9\xa6\xa8\xec\xda\x03_(*\x87\x92\xf6\xc4)^K\xac9\x8c\xc8\x02\x0c\x9f\xbbk\xff\xb9\xb5\xabZ!\xd5\x91\xd3u\xe8\xa1\xcd\x8b\xac\x82V\x84Er\xc5\xe3\xfd\xccXxB\x9e.\xef\xef=\x08\xaa\xa2\xa2\xce\x87\xc0\xc2!\xc3\x9e\x99\xd4\x14k\\\xc1R\xd4\xeb\x8d\x83;\xab\xf7,\xcb;\xc9\x1a\x88\x0e\x9e&amp;\xb1\xfcl\x01\x86)\xb2\xe2\xf1\x83\x07\xfb\xd5x\x9f\x8f\x88\x83hb\xd1\xa6\xce\xc7\xbe$F\xf9D*\xa1\xe9\xe6\xa3\x9bR$\x8ayc\xa4\xb1t\xc3\x8a\xd6\xc2\x8e\x9e\xa1\xd3\xb6:J\x05@!@\xe3\xaa\xab\xe2\x84\x15\xef\xef_\xde\xaf\xfa\x9d\x9ax\xf9rMM\xd9\x99\xdb\xbe\xe4p2\x99L%\x0eh:3\x8f(2\xfdPd\x8eT\xefYybGa\xcfP\xddY[\xf0,\xe2\xe1\'\xbf\xb3;\xbe\x89\xb0\x98Xhb\xbc\x1bH\xb0\xbd\xba\xf9\xd4\x80\xaa\xa6\xacs\x14j%\x92vm\xd5\xe2u\x17S2\'q\x82\xd1\xb1\xad\xe0\xc4\x16\xf4p\xa8\xae.h;\x8bUH\r\x84\xd1\xc3\xec\r\x03\xeb\xee.v\x167\x15SH\xc0\xf0\x80**\xdat\xff\xb6\xcf\x1eJ&amp;\xed\xa1\xcc"-\xb1\xf8\x03II\x92\xd1D\xc7\xbae9\xc8\x86\xda\xa1\xaa!\xda\x07)\x1dp\x0fzo\xda\xc8^N\xc0\xe1\x0e\xa2&amp;Z\x8b\x15%%%\xf0;V\xe2\xfd\xf31\x1c\xc2\xa1V\xe6SM\x8f\x18K\xd2\x9c,\n\x82\xb9q\xcf\xc6\x13\xad\'\'&amp;&amp;\xd4\xfd\xb9\xcaF)o\x0b\xda\x8e0@*\x04E8\xec\xaf\xf4\xfb+1\rV\xfaK\xca!V\xd1\xfd+1;U(\xb3Dc,\x9c\\\x05\xce\nk\xb5=in\xe8\xeb;\xdc\xd7\xf7\xbeo\x80\r\x10G\xf0\\[u\xd3\xc6\xf6lu\x9e\xe8&lt;sf\xfaBgg\xe7\xfd\xca\xcar\xa4iy\xe5c\xa8\x854M\xa55\xfdq\x84\xcf\x9e\x15i\xb4q\xad\xdbp|\xcb\x93+W\x1e?\xbe\xf5\xe0*^\x0e\xf7\xbdox_[KhGn\x0e\xbc&gt;20P\xfb\xbe\xe1\xf0\xe3\xab\xe7\xcf\xdf\xbe\xfd\x8fw\xef\xbe\xfd\xf6\xcc\x99\x1f\xef\x16\xa1\x97\x13\xcf\xed\x80\n)3\xda\x1e\xf6\xf9\x11L\xe2\x9c\xb1q\xc3\xc6\xe3c/b\xb1L\xc6\xe7\x8b\xc5|\xbe\xcc\xad\x07?_\xb9\xd10p\xa4\xf6\xf5\xeb\x81\x81C\x18Uo\xfc|+\xe6\xf1x\x86Q\xbeD"\xfd`\xf4\xdd\xb3\xbbw+\xca\xba\xfe\x1dJ\x85RvyJS,\xde0%\xc2\xf2\xd6m\xeb\x1f&gt;\xf4E\x15\x19\x07dE\x96e\xbcqy\x9e_\xbfw\xa3\xf9\xd0\x9d\x9c\xd7\xb5cw\xc6\xc6\x1e\xed\x1c4\xb3\x1f)\x14\xfaN*\x99I\xcf\xfcr\xb7\xbc\xa2\xec\xb0\x83~\xa8L\xed\xd3\x18kD\x12%ap\xfd\xf5\x87&gt;\xfaIW\xc2\x16\xc9~T\xc2\x01\xdf\xb1u\xdb\xa3;\x8f\xfe\x9es\xe8\xd0\x7fh5\xdf\x97\xb6\xd2,\x8e\x17f+\xdb\xbe\xd87\xc2R\xa8\xad\x9d\xd6B\x03\x91d\xfa\xc2\xdeR$&amp;\x9ak"\xc1\x88\n5\xe4\xa7f\x926\xa4\x81\x89{#\tI\xaf\xd9k\x98\x98\xa0q58v\x86\x9bHT\xd4\xaau3\x92\xa9\x101\xb1\xbf\xee$\xa3EQ\xd4\xcc\xb6\r\xd3\x80\xd6\x85Nq\xa62\xa2C\xdb=O\xda\xfd\x0f\xae\x07\xe2\x0b\xf3\xc2\x0f\xdfs\x9e\xefs\xce\xf1IM\x08\x04=\xbaR\xf8-\x0c\xf9\x05\xa7\xce \xb8\xef*\x7f\xfa\xcf/\xf8\x9a\xa2\xb7\xe7*d\xb1\xf2_,ol\x1e\xa2f\xde/^]\xbf\x9a\x9f\xac\xce\x14|\\\xcb\x9c\xbaTZ\xeaW\x1a:\xec}\xce\x04\x99R\xda\x95J\xfdHi{\x17Z)}\xda\x95|w\xfb\xf1\xaf{\xcd\n\x85\xb7\xe1{(\xae\xdf\xd8\xc5*\xfc\x1a\xb9|\xdb\xeaj\rZ\x81\xa0\xe8\xfa\x14##\xba6\xbdN\x9fr\x92dg\x9fR\xa9\xb4\xebu\xd6\x19\xabuf\x06\xadGFF\xd4M7\xb7\x17\xc6\x14\xb8\xc4]\x83\x9c\xeb\xdf\xecb\x9d{u\xf5\xb3\xe3\x05\x86\xd5m\xb4\x03AK\x10\xb5Zgmo\x87a\x1fFk\x9dU7\xc1\xdd$I\xde\xf9\xfa\x8e\x0e\xa5\x1e\x02Q\xf9\xd5u\x8d\x8d\x02H\xfb\xd4\xd8\xd8\x9eD27\x08\x0eQ\xf9\x80\xdd\xda:\xf7\x10\xae\x9e\x02\xc1\xfc\x00Z\xcb\xd4\x19\xeaj`\x90\xc9ok\xac\xc0\x04\xbd}\xb9\'\n\x91\xbd\\&gt;\x01j\xe9\xda\xbb\xba\x8aN\x9f\xbdu\xc9_\xb7&gt;\x1b\t\x8f\x8d\xdd\x0b\xe3\x92\xc0`\xe5\x93\xdb\x8f\xd9\x1d\x13\x0b\xc3B(\xadK\xc2\xf9\x81\xb66CO\xddH\xd1\xc5\x82/`\x92-\xeaBz\x01V}\xe7n2\x93\xc9\x84TW\x94\xa0\x14\xa8XZt\xf6\xb3\x13\xa7\x1bF\xda\xd5\xf3\x91p8\x1c\x00\xa3\xdf\xaa|R\xf9x{\xed$\x8bb\xbd\'\xcbO\x1d?Q*^\x15\xf6\x08\x04\xba\xf6[\xa5\x83ps_&lt;q\xb1\xe9\x13V\x1f\xa9q\x8cK\xa5\x04S\xd5\x81Jk\xa6\xfaf\xd1\xe9\'\xc7+\x1f&lt;\xac\xe9\xd2\t\x16\x97\x03\xcbxZ\xb6\r-s\xe5\xfar\x8eE\xb5\xd2\x9e\xcb\xed\'\x8eW\xf3W\xf9B\x81}\xa6\xabk\xf0\xf5\xed\x8b\'\xfe~\xb6t\xb0\xba\xbd]\x07\xb5\xb4A\x11\xe3\xae\xa0T*\xaa\xaaW\xdagft\x86\xed\xd2S_\x9c\xbd\xfa\xfa\xeb\xdf\xf5\xfa7\xbe\xe9\xe9\xe5\xb4Y\xb1\x00I\xbc)\xdb\xfd\x96E,\xe3\xfeSCAA\x9bwU\\Uo\xb7Z\xad\xea\x9f\xbe/:}\xfaT\xd3M\xffH\xfb\x8c]iO\x81X\xd0\x96\x0e\x858}\x13\xfa\x19\xbf\xff\xcev\x038D\xc3\x83\x87S\t7\xbfs\xb4E\x966\xe3+pS\xdf\xfb\xe3C\x9c\xcd\xd5\x08\xb9\x7f\xedRA#\xd7\xcb\x17\xc3a\x9b\x10\x18\x0c\x83Mp\x1a\xeb\xea\xc0\x1a\xf4v{}\x96&amp;J\\CC.)V^\x8f,\xc2\xdes\xa7z\xc4\xff\xe3[\xf7\xe2/\xaf\xd6F\xa7e\n\xe8nV*o\xff\xb0\x17\xfdp\xc8\xe6Q\xdc)\xff\xea\xea-\x01\x97\xc3\xe5W]\x11\x8b\xc5KK\xeb\x8d\x82uAc\xa3\xd2\x0eZ5\xf2\xa341\xe4*)q\xb92\xaa\xf3\x1d`^w\x05\x8d\xf3\xeb\x82\rnd\x0f7\x1a\x15\xcd\xe9\x1d\xa3\xd9\xfc\xf3\xed\xca\xc1?\xa9\x0f\xef\xd94\x88b\xf7\xc4\x99"!\x97\xeb\xe3\xf2\xf9^\xbe\x17biii\xa3ob\x02\x8cj\x82\xc3c\xf2I\x1c\x8a\xc5\xcaB*q\xdf\xb5k\x1bK\x1b\xfcT\xca#\x9a4\xe1\xc6\xb4\xd1\x98\xde\x01\xaeH\xd3\xe3YY+]\xcc&amp;\xd6\x85\xb0\xa1\xa0T\xec\xe3\xf9&lt;\x1c\x8e\x8f\x9b\x02*\xf1\xc6\xb5\xbek\x88M\xcc\xf1\xa8\xb0\xa4\xa3dH:\x14\xcf\r\x11!\xcb\xe6\x92\xd7\xbb\xb9\x99H8-\x93\xad\xb52&lt;\xfd[\x1eK2\xd7\xf48R&amp;\xcd\x9cd\xf5\xaa\xde\xab+h\xe0\xfb|\x1e\x0f\x97\xbf\x99\xd8\xe4\xa666\xce\xa7\xe0O\'^n&gt;SE1:\xe9\x80$\xbar\xb9X\x89#3j\x83/\xe4\xa4\x9c\xc4\xa8\xd1^\x99"\xfd\xa7Lf\xdc1\xe2sM?\x84wr\x8e\x93\xec\xaa%(\xf2\xf3\xb9&gt;\xb9\xdc\xe3\xf3%\x9c\x10\t\xa7\xcd\xedNl:m\x18\xc3`t\x08\xb0\x86\\\xf1\\.\xee\x92\x9az\xbb1\x9b\xed\xb9exr\xf4\xc6u\x19n\xc4\x158\xa8\x95\x0e7\xd5DC\xb8\xf9\x02\x9bX\x7f[L5T{\xbd&gt;\xf9\xb3gr9t\xcd6\x8b\r\xc0H\xa7\xd3b\xc10L\xf4\x7f\xac8\x80\xc5\xcaL\x84\x06\x13\rwO\x8e\xf6\xb6\xc8\x148\x8e\xa7wr;i&lt;\xd0\xa4&gt;`\x92;ln\xc0\xffR\x1cI\xa9\xab\xf9|\xae\xdcis\xcaQ\x17j\xb3A\xcb@\x8a\xba\xbb\x01\x8b\xa6\xbb3\x08+\xcf\x15\x8fK\xa4\xbdDH\x84\x89\xbaC7\x9a\x15\xb2f\xdc\x98;\x84\x1c*\xc2\xd5\xcaw\x07L\x8c\xd5\xc5|\xf1b\xca^\x07\x87\xd0\xa7\x02\x9e~\x94\xc4&lt;\x15\xf5M7\xd2JD#,\x17\x0c\xf6\xf9\xd0\x12\x04\x91\xd1\xd0\x16M\xa8W&amp;\xd3\xe2\xc6\xc3CcZ\xd1&lt;\xb7~w\xff\xddn\x9c]\xb5\xe6\x12\xf5\x02\x84%\xc7\x90R\xc0"\xc2\xfa-\x1a\x8d\x86\x86\xca\xc2\x18:#uA\x12c\xb1\x1cDL+%\x08\x07Q\xa1\xd1\x84ZM\xc0\x85\xea]\xdb\xdc\xb2\x18\xde\xdf?\xa0r\xacv\x10\x9f\x07\x9c\xe5B\xb1\x97\xe3\xe3\xa9\xf2H(hjRC\xd1\x18\xa3b\xfa\x11\x16\xcaa,n\x8c\xe7\xe2\xb8\x14\xad\x04\t\xb49!LA\x1c9\xaa\xa2\xa5wnm\xe3\xe9\x87\xe4!\xab\rW!\x8e\xa5\xe6\xe7\xf9\x1c.\xcfCb\x1fC4\x9c\xd4$\x01K\x1e\xa5iM\xa6\xec\xa3Z\xf0\x03,J\x8a\xe4r@\xa7C\x10\xb5AH#\x8e\xcbL\xd3\xe1\xc0\xd3w\x8c\x94\xcd\xfd7jm\x9e;\x97\xd6\xc5|.\x8f\'W1\x0c#\xa2iJ\x83\x82"=\x8c\x86J\x12e\xe3pS\xbbb\x00\x17\x93\x99\xca\xd0\x0eB\x8a\xb6\x95\xa6\xe6\xa0\x02\x07\xae\xe6\xde\xd1p$\xab\xc9\xc4\xd8}\xc9U\xf8\xf9\x9ceI \xe6sx\x9d&lt;\xf0I\x1a\x04\xd2$\x11\x16\x1d\x8d\xd2!M2\xe3p\\\x1f/\x19\xca\xcb\x85\'\t)\x8a2i\xad#\xa8\xc5\xb5\n\xf8\x00\xd6\x1c\xc6H\xbf\x95\xb1\xfc\xc0\xac0`I\x0cT\xf19\x9d&lt;\x1e\xdc5"\xd0*\x89\xb8(&amp;\x8bA*\x93\x99\xd6\xd6\x1b\x8e\x92\x1c\xb2S\x97\xd6Bg\x08\x874\xbf\xa9\x0c\x8e\xe3\x12\\!\x01\xb5"\x8b\x04QR\xa2\xbdp\x8c],\xdc\xe6\x1c\x10\x8a9\x1c\xc8\xa2\\%Bb\x85BIj7\x9b\x15\xd1\x16\xd10EQ\xc3\xc9\xda\x9dC\x14\xe34\x08HH\xcb\xca\x82\xc1\xa0T\x9bNKp\x89\x04\xb0\xbak\xcd.\xb3\x91\xed\x7fV\xa7\x9d\x9e\xba\x01\xc0\xea\xe4y\xe4\xfd"\x0b\xa5\t!,\xb2\x93\x87aN\x12cH\x12\xdb\xadhF.\x95\xc3)Hl\x92p\\\xff\xe7um\x107\x1b\xf1\xb4\x19a\x8df\x82\xb1\xd8\x0e\xdb\xef ^\xb8\xc9\x9e\x1a!\x1f\xb8\xe4\xaa~\xac\x1b\xccA\x93\x17\xab\xd3C&gt;\x93\x93\x9el6\xcb$[Z\x02\x01S\xd0D1\x07\x0c\x95!jMRmP\x0bm\x8dY"iiq\x07\xa4\x80\xf5\x9e\xed\xd7,\x85\x01\xa7\xa0Z\x88\x8a\xde\xa3\xea\x87K\x07\xcc\x92\xda%\xb3\xd1l\x96\xbb\xd13\xeb\xe9LeU!\xd3K\x7f#\x19\xa24\xd4\xc1\x01LB\xa6`\x89\x16\x97\x18\x8d\xd0\x02\xe2\xcb\x01\xb7I\x02\x97\x00\xfb/\x17\x8b\x03\xde\x1aa\x15X\x84\xbc\x1f\xee;\xc4\x05\xf5\x1e\x15E\xaf&lt;}\xd3\xee\x9f\x07\xe7\xe8\xff\x87\xfb\xab7\xfb\x07\xa4\xa5"\x84\xbd\xcb\xa2\xf2\xd2j!\x87\xc6\xb8\xd1\xach\t\'\x82f\xb3\xf9\xfd1\xf6\xa3x\xed\xe6\x80\x10a\xe5\xd5\x82"\xa7\xa3YLD^\xbe\xab\xb4\xebt=B\xaf\xfb\xfe\xfd\xb1\x08\xb4:\xc3\x15\xad\x15\xd1wQ\xaa\xc2\xa4\xd0J\x00\x0bB\xd6\xb2\x98\xe8m\x0e\xe6\x8e\xe4\x99\xe7\xb9\xd7\x06\xa1\xd8\xe7\xe1\xa1\x92\x07\xb9,\xbb \x16e\xe3\xf6)\xedj\xbf\xd5\xaa7\x18V\x1f=z4\x15\xf9\xf2\xcb\x1b\xbd\xa3\xd9\x83(\x95\t\x02\x969\x06\xd5\x05X\x91^\xc9\xfb\xc2\xa3y\xee\xf6k\x0f\xdc\x8bp\x12\xc1\xb8\x80\x8b\x89f\x19j\xd8\xb6\xb9aP\xfbu0\xe2\xeb\xf5\x86\x85\x85\x95\x95\x9f#\xff\xbd\x11\x98\xfe\x06\x9a\x18\r\x81\xb0@\xac\xf4\xda\xf2\xd8\x8b\xa3{\xb1\xf8\xfbV\x95@\xfc\tK$b\xa2\xa4e\xf8\x0f\xf7\xe6z\xa3\xda\xaaC`\xea\xb6\xad\xed\xd9\x95\xd9\xc8\xdcr &lt;m\xc9F\xe9\xd1f\x18\xc4\x00L\xb1\xbc&lt;V|\xec\xa8\xa8\x8e\xbd\xda\xaa\x12Vq\xc0O\xfbQ\x17\x01\xee$\xb2\xb9\xef\xaf\x0e\xdc\xa9kSCX\xfd\xea\x9a\xad\x85\xd9\x95{o#s\x8b\x91\xc5\xe7Q,d\xd2J \xd2\xf8\xda\xf2\xde\x11\xbe\x1e~\xb1 \x84\xb3\xd8\x89\x8a\x1e\xc3\xc8(c\xb3&lt;{\xb9:\xbfUsG\xadF`:\xbb\xb2gpea\xf6\xed\xd4\xd4\x94;\xb2h\xf3t\x9b\x148\xc2Z[\x0b\xef\x1d\x1d\xd5\xb1\xbf\xfe(\x10\x08\xab\xc0\xe7U\xaa\xfe\xfeh\x94L\xb8W\xe7\x17\xd6{j\x00\xc90\xa1\xec\xe88\xcf\xf5\xae\xff\x8fv\xf3\x8bI+M\xc3xm\xb8\xd8\xcc\xd6\xb9\x805Mz\xa3\xd2d\x18Zf!t\x1af&lt;\xc53\xc7\x81\xd2\xa0\x89\xa7\xf4\xd4@\xd1\xf8\xafL\xb4\x8d\x15Cd\x8d\xcd\xb4$\xea\xa2u\xe5\xacd\x84\xb35\x05MZ\x88\x08t\xc6\x06XCh\x98paW$\xa2V\x1b\xa3n5]\xedv\xdc\xb1\xadn;\xdd\xb4\x9b\xec\xfb\x1d\x9d\x9d\xb9\xd9\xec\xecN\xcf\x8br\xfd\xcb\xf3&lt;\xdf\xfb\xbd\xe7\xf0}\xb1\xe8\xe2b(\xb4h[\x0c\r/Y`\x98\x87}\xfa$\xb7X\xbc\xc2\x1d\x9c\xc0Ub$\x17&lt;\x02]\xbe\x1b\x03\xa9\xd6\x1b\x18\x922v\x08\xef9G\x94W\x9a\x9a.\xdbl\xc1\xe1Xv1\x04z-\xa6\xeb\x1aa\x9a7\x18\xe6\xe6\xfc\xaf9Tk\xdfm\x86\xc2\xd5\xea\xee\xee\xce\xcar\x89\xe4\xc1B"\xe1&amp;I\xf7\xfc\x82P~\x0f\xd5\x9f\x1f\xdc}y\xfe\xc9\'\xf1\xf8e\xfb|\x02T\x8bF\x1d\x8d\x8du\xf0\xf4c\x98v\x1c\xe2\x12\xeb\xb7\x0cE%\xd0tS\xde\t\x83=A\xe0\xa4\x95\x86)L2\xe5\x1c\xc9,\xdc{\n\xf5\xe2\xe5\x93\x93\x7f\xf2\xdcU\xcd\'f\x931\x9b\xa3\xb6\xbf\x0e\xaa\xcc1w\x98C*\xde\xf3\r\x8ar\x03\x16L]j\xf5\xec\xbc\x9b0Q\x84\xdd\x8e9GPe2\x19e&amp;#\xbc\xf7"\x9d^\xc2)`N\x0e\x87kA\xad\xfe\xda\xb9\xf8\xaa\x80\xc7e\xb8\xbeu\xe3\xd0ReR\x89\x84 \x080\x10\xda\xfe\x82\xce\xc8Rm\xb1d\x0b\x88.c\xbdz\x934Q\xf3\xe9\xe9\xb9\xb9\xda\xbap\x9d#\xf8\x98K\xac}\xbc\xbfhi\x9aP\xa9\xa5R;\xae\xa2\xac\xe8\xb4\x1dn4\x8e\x18\x8d[\xc6-\xf4\xf7fkk+\x93\xd9\xda\x1a\t\xd4\x8c\xd5\xb4a6\xc74\x94\x03\xb0\xda9\xbd[\xc0\xfb\xbd\x97\xa4\tBf\x97\xc8T:\xca\xdaV\x83\xde\x80_\x1d\x1b{\xb3[[0@\xbcx\xf6\xec\xcb&amp;\xcb\x15aGM=\xb6\x94\x9ev8&lt;\x9e:\xff\xd7\x1c_\x11\x11\xfc\x8da`v\xb6\xcbTj\xb3\xa9\xbef\xac\xa5\xa6\xe5\xcdX\xcd\xd6H\xe6\xe9n\xde_&gt;;\xff\xe4\xfc\x93i__I\xa7\xd3\xa8\x93,\x87\xc3\x9e\xb8\xcf\x11|\xcd\xf1E\x8c}\xdb\rZ\x92 \xec2\xb5\xca\xac\xabG\x07\x03\x03l\xda\x9f\xbe\xd8\xab\x97\xe8,W\xfft\xd8\xe2Z"t2[&lt;\x1c\x8e;\x82\xfew\xb8\xc6z\xed\xd5\x92n"\x01r\x11:c[\xc0\xe9T)1\x14\xf2]\xb9\x80\xee\xe5\xf9\x1b\xa3ap.n\x9b\xc5gmiO|8\x9d\x9a&gt;\xbc\x8f\xe3z\xe4\x8d4h\t&lt;\x91P\x13\x01\xa3\xd1\xacP\xca\x85\x18\x80}7\xf2\x1dT&amp;\xf3\xcf\x7f\\)i\x1a\x8d/\xa7\xe3\xf1`,\x91XL\xc7\xd3\xfe\xe0\xce\xc9|\xae\xb1\x06\x93\rz=\x0e[c\x82\xe8@g\x03\xe5r\x95\n\xc3\x9c\xba\x91\xbdZP\xdb\x97Z\x97[\x97\x86m\xc3\xa1X6\x9a\x8e\xfbwR\x9e\xeaB\x8e\xa9x\x831\xad^KS\x14\x9e\xa0\xccmF\xc0\x12b\x98\x0e\x16\xa5\xf5\xda\xcd\x9b\x1f\\\xbd\xdaRO\xa9\x97.\xb7./\x01U(\x9b\x0c\xf9\xfd\xc1\xd0N\xd9I\xceM\xcc\x8f\x9a\xb4z\r\xaer\xd3n\xdcj\xc5UB\xa1\x193\x9b;\xea\xeb[\xae\xfe\x0e&gt;5&amp;\x95\xbc|\xe9n\xab\xcd\xe6O\xa5\x92\x1b!\x7f(\x98\xf2\x18\xaa\xb9\xc6\xe2\xe5\xdb(\x06\xe4"L\xcc:M\x9ah\xca\x8caf\x9dN\xd7\x81~\x82\x1a\x1bkii\xd3)\xc4==K6[hb";\x91\n\x86B\xfe9\xc3)\xaeo\x90\t\x0e\x05\tB\xabe\x18\x1cv\x1e\x12\x86?\x13n\x06\xa6@G\x1b\xe8\xd5\x82~\x952\xdb%=\xd1X4\x14\x9a\x00\x0f\x17\x17\x17S\x8e2\xc3E\x1e\xe7X\xc3j\xdc\xa4G\x8b\xd1D2dU\x15e\xea\x08\x04:\x02m0\x9dZ\xdb\xda\xac&amp;bjm-\x16\x8b\xd9\x82\x10*\xf8\xf8\x83\xdb\xd3e\x86\xcf\xb8\x8e\x16\xaf\xd0#S\xe1$\x03\xcd\x8b\xb22U\x9a*\x922Q:\x1c\xb6G\n_\x98\x9f\x9aZCg$\xb2\xc9\xe8\xb0\x7fg\x07lLM\xa4\x1c0\xa0\xfe\x95s\xac\x02\x87L\xa52\x91Z=\xe3\xa65\x1a\xed5\x92\xa2\xddV\xf8\xc2\xe7\x01h-\x16]\x8b\xda\xa2\xc9\xe4\xdd`\xd0\x1f\n\x01T6\xdd_W[\xfd\xd91\xae\xb1\x04sb5\xcc\x0eUz-C\xc3\x92\xd4\x92\x8c\x951\xb9\xdd\xee\xf5\xf95(Pk-\x14\xccf\x91\x83)\xa4\xd5r&lt;\x8c^\xe3l\n8\xc7\x02\xb5\xcc` l\xd9Z\xcd\x19\r\xa9\x05?i\xf7&lt;\x8d\xafM\x81\x89\xc0\x15\x0cfS\xa9X(819\x99Z\x1e\r\xd7\xd5\x1a\xfe0\xf7\xf8=nC/8\xec\x91\xa8\xd5\x18\x04\n\x86@M\xc3\x19\x86\xd12\xa4\x97\x0607\x03p\xb8{&gt;\xb9\x96L&amp;S`\xe0\xc4d\xaau\xd9\xe7\xa8\xab-;5\xbd\xfa\x0b\x8e\xe5z\x14\x94\xc8\xd4\xe6\x00e\xc2\xdd\xe8.u\x04z\x05\xa3\xd50\t\x9a\xac\xa2h\x9a\x84\xda\x98Hn@\xc7J}\x9bu-\xfb\xc20\xcb\x1bN\xcd\xad\x1e\xe4\x16\xeb\xd8\xf1\xa8\xc4.\x13\x9a\xa1\'\xe04\xc9x\xf5\xda\x06\xaf\xd7\xadm\xc8\xae3U$MWYiz}#\xb9\xb1\x11\xfa\xe6\xa1?\r\x16\xf67B\xe2/\x02V\x01\x97.\x16l\xfe&amp;)\x11\x8b\xe5\nLg\x0c`V\xe8\xabz}C\xc4\xab\xd5?\xf4z\xa1\xbdZ\xadU\xcc\xfa\xfa\xc3\xc9\x87\x1b\xdfL\xda|q\x8b%\xeck\x04\x0f\x01\xeb\xc08\x87r\t\xf2r\xf6\x87z$2\xb9\xcai\x86-\xc7\xac\xa3\xc0\xc9\x08\x8c\x14\x9aH$\xc2\xd0zM\x03\xe3\xf5F\xbc\x93_=\x9cH[F]\xa3\xe1p\x7f?,\xc4\x8b\xfe\xd5\x0b\xe3\x05\xdca\x1d\xc8\xc99\xb2-\xe9\x91\x881L\x859\x9dN34RR{\xe6\xcc\x99H\xe4s\xf8\xd7\x9f\xd174D"\x9f~\xe5\xb5\xc5}\xe1\xb8k\xd4\x17\x0e7\x96UW\x97-&gt;\xff\x15\x7f\x9c3\x17\x0b\x80*\xe7\xf6,`\xa1&amp;aF{4f\x0e\xb85\xd0\'&gt;\xf8\xf8\xfd\xcf\xaf_\xff\xf8\xfd\xeb\x9fF\xf4\xd7f[\x97G}\x96\xd1Q\x0b\x8a\x96\xc1P\xed\xf1\xb4\x17\xf19rQp\xf8\xbd\x15\x84u&lt;\xd6\x03\\0\xfa\xe9\x9c0\xfea\x18\x160Z\xad\x1a\xf6Z&lt;jc4a/\x1fpY,\x9fX,\x08\x0b\xbaVuu\xf0\xf1\xc1\x13\xfcq.\xe4\x12\x1c\x12\xadl\xe6\xa0:\xb2-\xeb\x91H\x84J\x05\x86)\x95J\x0c\xc2\x0f[\xb5\xb1\r\xd8\x8c\x1dfL(\x14K\xbb\x97\x00\x0b\xa9u\x03\x05\xdep\xca\xe3\xdf\xbc\x00T\xe3o\xfd\t\x96\x97_ZQQ\xb1\x8b\x95s&lt;\xd9\xd3\xd3#\x96\xc3jT(\x95\n\xf8F\xdd\x02\x9d;\xd0)\xba\xbb\xbb;\xbb\xa5\x95\x95.\x0b\x98\x08l\x16\xe8\xa5\x86\xea\xb5\xd5\xbc"&gt;\x7f\x9c\xcfo~{\xbd\x9e\'(xuV\x04P9+\xc5,\xd5\xfe\xe2\x1d\x19\xb2Q,\x17*X.\x05\n?L\x82NE\xb7T*\xed\x94v\x0e\x0c\xa0\xbbZ\xa3\xe8\x801`\x95\xd9\xfc+\x17N\xf0\xa1\xc6/\xf56\x1f{\x1b\x92\xf1\x04\x87\xf3ss\x91R]]\x15\xed\xbbX9Gn\'\xd01\r\xe0\x020\xa1\\\xa8D5\xe3t\xce\xc8\xa5\xe5\x95\x95\x95\xe8\xc5*\x10\xb9\\\xae\x1b&gt;\x88VY:\xfa\xfc`\x11\x9f\xad\xa2\xa1\xde[\x97\xfe\xf8s\x1b\xab\xe0\xddADT\n\xb5\x02j\xe5\xed\xa9\xb5\xff\x8b\xacJ&amp;\x91H\xf6\xb0\xe4\xca\x19%\xa8\x06t\xe2\xf2\x81\x92\x81\x81\xca\xca\x12\xb0\xcf\xd5\xd7\x07\x92\x01\x96cju\xe5\xc3]\xb1\xf8\xfc[P\xbd\xcd\x97~F\x0b\x13\x14\xe6\x0f\xe6\xe6\x8aJA\xa7.@\x03&lt;\x16k?`\xe5|\x8d\xab\xc4\xbb\\r\xa1P\x0e6*\xc0K\x08{\xf9\x00P\x81Z\xa0T_S\x93\x0b-\xc4~\xbb\x1f\xc4\xfa\x1e\xab\x19\xa8\x86\x86\x00\xac\xb0\xe0\xffj\x17\x05\x87\x06sKE@\x85\xb8\xee#\xb2\xae\x95\xbcs9\xdfsmw\xc8%\xdd\x12\x96J!d\xb1P\t\xd9w\x97R\xe8\x0f.W\t&lt;\xc4Z|\x8d\xfd\x0f\xa2\xaf\xdb\xd9d\xc1J&lt;\xc1?\xcdR\xf5\xf6\x8aD\xe0\xe5\xff\x1c\xa8w\x06A\xa8\xdc\xd2R\xc0*\x05\x9d\xee\xdfG`\xe7\xf2\xda\x8f\x1c\xd9\xc5\xda\x7f\xd4\xef\xbc\'\xdeS\x0b\xc5K\xa1\x9c\x99q\xce@\xb8 \xf0\x9d`b\xdfG\x03%\xa0\x96/l\x9b\x7f\xbcy\x00\x895\xfe\x03\xd6\x1d \xbbu\xfa4x\xc9\xfb\xe9=\xf3U&gt;2\x0f\x15\xab\x16\xe2\xea\xea\x02\xb0\xfb\x15\x07Y,$\x16\x80\xed`r6[\xc8&lt;\xf4\xcdf^!\x86\x0e!\xad\xecs\xf5\x81\x9b\x08ky\xea\xef\x9by\x1f\xfe\x18k\xe8\xce\x9d;,\xd5\xe9\xe6\xe6\x9f\xea%\xaf\xf0ln\xee#\x96\x89EB\x8a\xfd\x9b+\'/\xaf\xb8\x18\xc9\xb5\xcb\xe5\xd7\xc9\xc42\x99\x90\xc5\x12\xb2r\xcd@\xf4\xe5\xe8\xfdeI\xd3@%\xfa\x11mtY\xedy\xde~a7Y\x10\xad"\xfe\x8f\xa8@8\x04\xf6\xea\x98\xe0\xbfy\xf7\xee`\xaeH\xc4"\xb1b\x95\x96\x8aD\x10\xad\n\xe4#pu\xe5\xfd\xf2\xe8\xb9=.\xa8b?&amp;\x93\xc9eB\xb5\x9a\xcd\x17\x8b5\xa3@=^\x8aV\xe3\xc0GMM\xadf\xff\x17G\x0f\x80X\'\xf8\x88\xecD\x11\x7f\xa8\x0ba\xddBX\xb7\x9a\x9b{\x11\xd8\xd9K\xaf\x04\xff\x81G (\x00\xf3\x06\x07\x07\xcf\xfe\xc0%*\x1d\x1a\x1a\x12\xe5\x96\xeeq\xdd\xe9\x02\xac_\x9f;W\xbc\xdb#Pm\xff\xab-\xf3wm$\xbd\xc3\xb8\xa4f\x06\xcfx~,3\x0c3\x8d4+\x18q3\x8b\xce\xdch\x08hu\n\x06\xbb2*|\xc4.\xc4\xfd\x05*\xe4m\xc2\x84\xa9\x0e\x82u\x1b\xdc\x88e:7Nq\\\x13Pa\xc8\xfa@W\xd8M:\x15\xc7\xe6\xc29\x18|\xd8`X\xb3\xc5m\xaeXH\x93\xe7y_Y^\x92|\xbd\xd8\x92\xe5\x91&gt;z\x9e\xe7}\xde\xd7\xeb\x8d\xed\r\xe8\xb5\xfd\x94`\x9f\x0b\xae\xa7\xe2/\xec\x08&gt;\xb8~\xff\xcf\xed\xbf\xfc\xfb\xde\x1bu\x89%Z\xab\xfb\x04\xab\xe7A\xac],\xca#\xbe\xdax&lt;\xfe\xf0\xff\xbc\xac\xd7I\x84\x94#S{\xd2\xc1\x1d\xdc\xd8\xc1\x1b\xdb\x11rqN\x0f\xab\x85\r\xb9\xe2x\xa5W\xed\xfa\x87\xed\r\x06\x0c%\xf1T\x94*\xd2\xff\x92\x7fa\xc7|\xf9\xe5?~\xfc\xe9\xae\xea\x8e(\x96\xec\x07\xdc"\xd6\xd17K\x0f\x8f\x0e\xe0\xc6\xfa\xc1\xee\xee\x18^6\xff\x07\xac\xb5\xbe\'i\xd6\x01\x06\xc1\xd6\xf7\x8ew\xc8urxx\x8a\x0bO\xf6\x0fO\xf7O\xf7\x8bb\xa8\xd9~\x920_K\xacx\xfazc\xb9\x1eeC\x00\x8brq\x07\xfa\xf4\xd9\xab\xef\xafk\x85\xb0\x90X8A\x0c\xba]h~\xbaL\xd67\x07B\xac\x03b\xedq\xfe\xdbK\xac\xd8G0&lt;\xce;\x8c{\x8bIx\x93e\x88\xd5N\xcbE=h\xb6\xe9\xb7\x93\x95\\\xd5Z&lt;\xff+j\x95\xbb\xd0g\xd2E\x80}\xc2\xbf\xfd\x7f\xfa\xf2\xb3W?\\\x97W^\xa7+\xc5\xeauz\xbdAo\xa4i\xda\xa3\x83\xa0j\x81j&lt;\xe6k\xef\x8d\xcf\xce\xb0.?\xaa\x8c\x16\xdf\xc2\x01\x9a\x93P\xc7\xe0:\xa0s\xb8\xd7:}sX\xb8\xfa\xcd\xfd\x95\xe7y\xae\x1b\xfb\xb6\xdd\xf6\x93\xfe\xb2%D\xb5f\x7f~\xc6\xba\xe7\xbe\xfd\xf9\x8bW/\xa8\x17\x06\xf7^\xbd\xbe.\x87\xee*X\xc0\x1a\x0c\x9eX\x96\xa6\r\xbag\x0fTG\xa0\xe20\xcb\xa0:\x1b#\xfe\x1f\xc0&amp;e\xdb;\x81\x1e\xfb77;\'- \xc1\xbc\x9d\xd6\xcdU\xf5p\xbf\x85\x07\x02\xdd\xf3t\xdds\x81U\xf4cM\xb3\xda\x96?\\\xa5\x0bd\xfd_\xff\xf4\xec%\xb1~\xb3\xf5\\rq]&gt;\xff\xe2\xe7\xeb\xf2^\x06KRu\xba\xf6\xa0\x1b\xfb\x96\x85/\xbd1\xb1NZ-\xae\xc4#\xae\xb2\xbd\xf1\x98T{R5\xb9\x99\xaf\xaf\x83\xabX[\x0bD\xb7\x1f\x1f\xd7\xd70\xf5\xe3\x02y\xbf\xa9\x0b\xa8\x82X&gt;\\\x04\x97e\xb5)X\xed1`_\xe1T\xf8\xc9\xc6\xf6\x16\xb8^\xbc\xd8\xda\xda\xde\xc6\xc9\xf5\xab\xbb\xdaUa\xd3B\xb1\x06A5\xb0;Z\xec\xb7-s\xd4\xe9}7\xb2\x11\xf7\x13b\xb1\x83\x04\x96\xf0R@q\xb04\x0fZ\x07\xa7o\n\x01#\xc7\x00UP\x17\xa3K\xad\xa0YQ\xb8}\x9fr\x99\xe0z\x14\x0c\x92\x95\x10\xec\xeb\xaf\xb7\xa9\xd6\x17\x82k\xeb\xf9\xb7w\xbf\\\xb9\xfah\xa5\xd5`\xd0\xb1\xed\xae\xdf\xf7\xdbm\xd3\xc6y\xa23\xd2U\x95F\xa8:;\xa0^\x0f\x0c\xc3\x08\x8e\xbd\xd6\xee\xd9\xae\xe4\xfaP99\xdc?)\n/\x14H\xc1\x12l\x85\x85\xab]\xa1X\xe1\xfaU[3-\x13z\xf9\x1f\xf5*\x9a\xf5\xee\xa7\x8d\x8d\xedM\xfe\xa7 \xb0\xf0;\xd1\xb7\xd9}\xe1jK\x0b{\xbd.\xb0\x06\x08U\xe2\x03\xcb\xd2\x06\xbd\'#\x95X\xaa\xe2`\x14\'\xc0\x18a\xda\x88\xc2\x06\xd6%\xc0\xa8\x1d{\xcb0\xbc"x\x94k-\x08\xd6\xf0]\xb0y\x9e\xca\x01\x16\xa7\n\xb9@E.\x16~\xcc\xaa\xa8\xc6q?\xb9\xff\xf5\xe7\xbfommnn\xfe\xee\xb7\x9b?~\xff~Z\xd5F\xf6H\xae\xc2%\x95m\x0f:\x80\xa2\x8bv\xb7\xd7\xd19\xaa\xaa\x88\t\x00f\x80\xca1\x1ac.S\x1a\xbaW\t\xd7\x9a\xcd\xb5\xe0Jm&gt;RQ4\xbc\x85z\xfdFW\x94\xba\xc0\xe2ZL\xaa\x9a\x90\xab\x8d\xe7\'\x18:,\xc6\xa7\xe10)\xca\xeb\xbb\xbb\xeb\xeb\xbb\xbf\xfd\xe1\x8f\xaf\xcf\xf3Z\xa2\xd9\x1d\xb4\xba\x98N\x87P\xc4\x12\x17\x02\xab\xd3\x85\x89\xa4Zr\xd5ib\xdap\x02\xa8u$\xa8\x88\xd5$O\xe8\x16\xcd\x8f=J[n\x00\x00\x04iIDAT\xb9\x0cZ\x19(\x9e\xaa,\xd5\xe2\x87[\xfa\xb6i\xd2E\xcb\xe7$\xfda\x82\xfd\xa8_\xcd\xa7Y\xad\x96e\xf9\xe4_\xaf\xdfOp{hb\xc1\xe1_\x07L\xd4\n`\xb8c\x9b\xa0\xb2Lm\xd0\x11X\x82\x8bdu\x05X\x8d\xd41\xd6\x1a\xee\xe9\xc9\xe9\xe1\t\x0b\xb6\x926\xc8\xa3\\\x19\xcd\xe6\x92\x0c\xf9\xe3\'\xc8\xa5\x0b,d\xcb\x93\xd5U\xb3\x11/S\xd8H\xc1\xa8X\x9cM.f`\xc9\xa6yVN\xe7\xf3\x9c\x8c\xfd\xa4m\x0f\xc4\x87M$|\xe9&lt;\xb1m\xca\x05\xac\x91\xc0R\x85\x89B\xb0\x80X\xf00l\x8c\x1c&amp;\x1a[\xf3^\xa5\x91\x12\xc6(\xea\xa4\xc2\xcd04\xb80 V\xa0\xeaR,\x9dk\x11X\xfeT\xc3\x93\x0b#!\x16\x13\x16O\x17\xb7\x8b\xd9d\x0e\x962\xe9S\xb0\xd9\xc5\x050\xf32\x1e&amp;()\x99+L\xf7;\xcb\x96\xc1\x84\x8b\\\x89K\x17U\xe9\xa2A\x0f\x9b\xe9(%C#\xa8\x1bP\xab\x11"_\xae\xda\x14r\x85k!\x12H\xb9\x80%\xde\x0f\xb9d\xe8\xdbYB\xb9\xf8\xf4"^\xf1\xf4\xe2\xed\xdb\xc5\xc5l6\xc98\xf9t\x9a\xcf\'\x8b\xdb\xcbw\xef\xde\x02v\x0e\xd48\xf1-\x9b?nw\xb0\xa7\xf2B\x93r\x8dT\xf5\xc1Bx\xa88\xf5\xa8\xe1\x18@S\x9aLz\xa8\x1ai%\x02\x16(&lt;\xaf)\xe5j\x86\x86!\xd5r\x96X\xba.\xc5r\xcdj\xc6wN\x1fQ\x12q\xbe\xb8|w{~1\x99L\x84y\xf9b\x01\xa5\x16\xe7\xb7\x97\xcb\xb9]\x007\']6\xad\xfaC\x13\x0b\xe6\xc1\xc5\x07*\x19\xfa\xa0\x1e\xa5\n\xb0t\x87\x02\xa5\\\x98\x15\'m\xa4\x86\x11*\xdeR\xadG\x0f\x15]u\xc8\xa5\x0b.`Y\xc9\xd4\xb5EF\xfca5\xbf}{y{\xf9^X\x98M~\xc9\'\xd3\xd9\xf9\x02\x8c\x00\x03\xdf\xe2\xfc\x1c\xf7rl\xe7\x8b\xf3I\x86\xc0\x95\tvD\xfa/\xc3\xa5&gt;\xeaUGu\x19\x91\x12\x86\r7B{6S\xd5\x88\xa2\x8a\x0e\xb9\xc0\x17x)\xb1\xc20\x8c\x0c\x03\x0f\xcbh\xa1\xee&gt;R\x0b.\xd6\xd8\x0cUdhrq{{\x8e\x17_0X\xf7\xd3j\x9e\x979n\xc1\xc5\x99\x18\x11\xb1\xac\x9fLg\x17\x13.\x87Z\xd2&amp;\x16\xd42\xf5\x07,ZA\x13\xebND\xac\xc8\x8d\x8c\xb0\xd9\x8c\xd4\x08X\xae\xd3h\x18\x02\xab\xb1\xc2\nB\xe1!\xb0\xa4\x8b\x8c\xbc\xe6\x9an;F\x84\xe6\x8b\xcb\xcb\xf3Y&gt;\x9f1U\x17\x8cP-\x89\xcbj\x99eeY\x83_y&gt;\x9f\xcf\'\x9c\xbcL\xfcl2\x9b\xe3\xa2\xb2:l\x9bB-W[\xb9(\xeb\x14TN\xe4(4\x0c.5\x1b\x14#\xaa\x14:\\\x94X\rb\xa5\x11|D\xbe\xa8\xd3\x03\x96.\x0b\xc24\x93\x1a"\x84\xd0\xe4\xd58\x9bS\xa7)\x92S\xc68\x8e\xf5e\xe3\xa3\xf9\xcb\xb2\xcc\xe4\x94\xfd\xb6_\xe2\xc7P\x1f\xb58\x91X\xc8\x96p\x118\x0f\xd1\xaa#\xf2\x8e\x13\xa4\x9e\x8e\xf4\xa4\x8e\x1b\t,/J\x1b\x88\x93\x073S\x81\x95\xa6L\xbd\xc4rVK\x11\xcfi\x9a.t\x99,.\xe6\x89\x05\xc2\xb2\x14\x1bc\x1c\x0f\xb1\x0c4vF\x92\xc8\xf3X\xcc\xe9\xf7\x11\'\xab\x06k\x01\xc8*\xb3\xf8\x04\xa6\xc5\xed2\xea(\xcaJ,\xaa\x83x\xa5\xae\xc2\xb0\xbb*\xee\xa6\x95+\xe1\xa2a\xe8A\x03\\i\x04\xaa\x08rE\x0e.s\x84Z\xca\x8a\x8bh\xc3\xe9|\x1a\xfb&amp;0\x86}\xc4\xac\xaca\xf3\xd1L[P\xa35\xb0Y\xf6\xe5\x8e\x94\xf8\xec\xd4a\t\x03\xb9q\xfa,\x07r\x99\x1a\xce\xd2\x8eB\xbd\x1e\x04s"\xc4&gt;r\xc1\x16R\xac L+E\xa1\xb2"\x0c\xdd\x91T\x14\x8b\x9a9\x8a\xc4\xc2\xe5\xa4\xb2u\x8dckm\xa8\xe0\xe3\x80\x82JE\xcd\xd7PMI\xa2\xbb\xa6(M\xb0bE\x0c\xc9\x04*T\xd6\xc0\xb6p\x9f;U[\x88E,\x8dX\xdd\x11\x9ex\xe4,\x05\x93X\x1e%\xf3\x10x#\xeaU\xbc+OT\xc4GX\x98\xc8\x91X\xe2B\xa1\x96\xady\x02\xcb\xf2y\x10\xe0\rh\xd3\xaf\xd6\xfax\xcd\x91\xcd\x87\x06K\xae\xa1`\xf2\xc9\x8e\x13M;\xe1\xb9A\xf4\xbbt\xd1\xd5p\x14\xeb\xc2E`9+,EbEE\x84lG\x9d\x8a\xea\x17\x113\xaf*\xc8\xbc\xf00\x15b-G^G0\x8a\x058@\xe14\'\xb0\xd8\xa91\x0ew\xfe@ba\xa31\xdbI\xb2\xa4\xf2-~\xcbF\xe6h\x9f\xe0\xc2\x08\xcdqB\xec8\xabw\xbd\xc4r&lt;\xf4\x83\xea\xe2\xd5\xa3\xae\xf6\x1f\x90!\xcc\rX\xe3\xf7\xb9\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -553,172 +623,301 @@
           <t>Gabriel Milito</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9dzTXtRaw profile type xmp\x00\x00H\x89\xadVK\xb2\x9c0\x0c\xdc\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3{UY\xe6\xf8i\x19\x98a\x06\xf3IU\x86\xc2\xc0X\x9fV\xbbe\xa0??\xbf\xe9\x17~\x91S \x19\xad\x93\xc1:\x9d,\xe8\xa4\xd9\x92F\x0e\xfe\xac\xa3\x16\x13\x9f\x93\x89M\xa3&amp;\x9d\x955\xcb\xb0\xfc\xff\xb2\x9e\xd9\xa4P\x188|\x1e\x08\xcdpR\x192\xa7\x94\xf4+\xec2\xe7\xa1;K8\x82\x0c\x085\x93\xd5\x1f\x17\x83\x15\x17\x9dah&lt;K\x94\xde\x0f\xdc\x05a\x8c\x8cqZ\x82\xe0*\xd6#,\xd0X\xc7\x93\'`!\x87\x15\x86+\\\x00\x95MT\xf0\xdc[\x80{\x8f\x12\x0bp\xae\xf3(\x9a\x15\x88P\xa7\x03e;\x06\xdb\x97\x04\'9\x16\x84\xc0\x19\x01G.\xb4\x15\xe3\x86\x183\x1c\xb3\xd3\xe8\xd0\x01\x19Er\x91\x95\xd0\x16\xee\x9a`\xb0D\x80\x9b\xdc\xb9m\xf6*/\xea\x08\xe4\x176\x04\xd0\xa3\xf6[\x19\xf5)jQ\xf32*\x95`H\x15\xb4f\x0f\xe5\xb8R\xae6\\k\x89p1\x9c\x82\xd28\xb81F\xc5\x14\xb4\x82\x82\x02O\xc8\xc52\xf2\xfc\xa2\x14\xe9\xda\x88\x16\x1b\xba\x03\xbe\xb0\xe7,\\\x93@\xef\x9c\xede~*\x0e\xbaV\xc7Sq\xa4HU\x15\x08\xa6|TI\xd5l\x01\xd1/\x1b\x0f\xbc\xa6,*\xb8N\xb0B\x17\x1a\x94\xbd(%\x9c+%\xed\x02U&gt;\xe1v\xb4\xa4\x8f&amp;\x15\xd4\x1b\xaf\x15\xb5\x8ae}\xc2\x8e\x11Q7\xfc(\'\x03GX\x0b\x14\x96\xb9\x127W\xd9c\xf2!F_\x9eL\xce\x00$\x87\xc5\x87n\\;\x89\'\\}\x8c8\xb0\xfc-\xb7\xb7\xd7\x96\x88.2e\x03\xf5\xa9\xafI\x00\x14\xff%$\x8a\xd2\xa1+\'\xe9&lt;Q\xbd\xf3"; B\x1b\xf8\xbe\xc7\x8a\x1dG\xa4\xe6\t\x92a\x94\xe0\x92!FSn \xdb\xa5qTtS?p\xac\x98\x90\xaa\x9e\x8a\xb1\x07\x9a\x84\xd3p\x97\x81mQ\xf6\x99\xeb=\xcd\xd9;\x13\x98\xb5\xcb\x89\xd65+\xd2\x80\xbf7\xdc\xec\xce\xda\x96\x9e\xf5\xf6\x9d\xca\xb0\xf9?\xd3\xedg\xc8V{\xd3\xf3\xfe\xfeO\x9b\xbf\x85\xf6\xfblkl\xda\xde\x9f\xefn^\\\xd6f\x96\xf3f^C\x83\x0e\x07C\xda\xf9\xde\x8b\x9dx\xd0\xd9\xf7^\xdfzSo\x83\xe1\xb9\xf2\xf2a\xbeY\x1f\x03\xd3\x1d\x89O9\xa4;\x12\x9frH\xcbw\xc89\x89\r\x0e;\xf4~\xf8\xde\x10\xa9\x01y\t\xbd\xdf0P\xbc\xab\x1c\xc7\x086\xc5\xdf|\x86w]\xa5e\xb5\xa63\xf3\x7f\x95$mt~\xbb\xdd\xb4K\xfdr\xda\xfb\xd1\x87\xd9\xe1\xdb\r_b\x7f\x01\xfc\xbf;\x9e\x01\xb7\xd3Q\x00\x00l\x83IDATx\xda\xec\xfdg\xb0%y\x9a\xde\x87\xfd\xfe63\x8f\xbb\xb6LW\xb5\x19?=~=v\x17+\xec.,A\n (\xc2H\x00!\x11\x90\x14\nE@\x8cP\xf0\x03\x89\x08\x05\x03\x9f()B\xa2"\x14\x12\x82\x00IA\x1f(\x10\x96\x82!\x16f\r\x80\xc5\xdaYofvfvf\xdaw\xd9\xeb\x8eK\xf3w\xfa\xf0\xe6\xb9u\xbb\xb6\xba\xb1\x10\x16[\xd5\x0bdDu\xdd\xbeu\xef9y2\xdf|\xed\xf3&gt;\x8f*\xa5\x14\xfe5?J)(\xa5.\xbf~\xf0\xe0\x01?\xfd\xd3?\xcd\xcb/\xbf\xcc\x07?\xf8A\x80\xcb\x7f\xff7\xc7\xaf\xef\xd0O\xfb\x04\x9e\xe6QJ\xe1\xec\xe4\x8c\xd7^}\x8d\x94\x12\xa5\x14^}\xf5U\xfe\xf4\x9f\xfa\xd3\xfc/\xfe\xc3?\xc5\xbf\xfb\xef\xfe!\xfe\xca\x7f\xf7\xdf1\x0c\x03\xa5\x94\xcb?\xbb\xdf}\xafg\xf2_\xf7\xe7\xd5&gt;\xed\x13\xf8Wu\xecn\xacR\xea\xd7\xdc\xe4\x9d\x87*\xa5\xd0\xf5\x1d\xf7\xee\xddc\xbb\xdd2\x9bM\xf9+\x7f\xf9/\xf3\x83?\xf4\x83\x80\xe6\xab\xab\x15\xff\xd9\xff\xe1\xcf\xf2\xab_\xfe2\xdf\xf3\xbd\xdf\xc3\xcb\x9f\xfc\x14\xfb{\xfb\xf4}\x07\x806\x86\x9c3]\xdb\x01\x05_U\xcc\xe7s\x94R\xe4\x9c\xd1Z_\xbe\xcf\xe3\x1e\xef\xea9\xfdV\xf4\x86\xea\xb7b(,\xa5\xb0Z\xae\xd0ZQ\xd55\xeb\xf5\x1ac\x0c\n\xc5\xe9\xe9\t(E\xd7u\xbc\xfe\xeak\xfc\xe4\xe7?\xcf\xfd\xfb\xf7\xf9\xca\xaf\xfc\n]\xbb\xe1k\xaf|\x9d;\xf7O\x98\xcd\x17\xa4\xd0SW\x96\xa6\xaa\x99L\xa6|\xe8\xa3\x1f\xe3\x1b&gt;\xf7\r|\xe9W\xbe@\xc9\x85z2\xe1\x13\x9f\xfc\x04\xd7\x8fo\xf0S\x9f\xff\tNO\x1f\xf2\xbf\xfe\xdf\xfco9::\xe6\xe1\xc3\x07\xdc\xbc\xf9\x1c\x87G\x878\xe7\x99\xcd\xa6X\xe7\x98N\xa7\x94R\xb8\x7f\xef&gt;\x17\xcb\x0bn\xde\xbc\xc9b\xb1\x90\x9b\xf1[\xc8\xc0~K\x19V)\x85\xf3\xb33\xbe\xf0\x85/\xf0}\xff\xc3\xff\xc0f\xb3\xe6\xb3\x9f\xfd\x1c!\x04B\x08&lt;|\xf8\x90\x1f\xfb\xd1\x1f\xa6\x1f\x06b\x08\x9c\x9e\x9e\x11S\xc2\xfb\x8an\xbb\xa1\x1f:\xb6m\x8f\xaf&amp;|\xc7o\xffN^\xfd\xfa\xd7\xb8{\xf7mT)\x0cCb\xddu\x94\x9c\x99\xcf&amp;\xcc\xe7\x0b\xda\xcd\x06_9\x9e\xbby\x9b;w\xef\xb0^]ppx\x84V\x06\xe7,\xf3\xc5\x82\xc5b\xc1\xb5k\xd7x\xf1\xc5\x97888\xe4\xbb\xbf\xe7\xbb\xb9\xb88\xe7/\xfd\xa5\xbf\xc4k\xaf\xbf\xce\xcb\x9f\xf8$\xff\xf3?\xf9\'\xf9\x8e\xef\xf8\x0e\x9a\xc9\xe4i_\xc2\xdf\xb0\xe3\xb7\x8ca\x95RX\xafV\xfc\xd7\xff\xd5\x7fES\xd7\x9c&lt;|\xc0\xff\xf3\xff\xf1\x7fG[\xcb\xc1\xfe\x01%gNNO\xd8\xb6-a\x88\x18kij\xcf\xa4i\xc8%\x93RFiCJ\x99\x83\xc3\x03\x8e\x8f\x8f9=9a\xb9\xbc \x84\x88\xb1\x8ev\xbba\xb5i\xc9\xa5\xb0\xb7\x98\xb1\x98M\xd9n7TU\x8dq\x9e\xb3\x93\x13\xac\xd1\x0cC\xa0\xaa*b\xca\x18\xad\xa9\xeb\x8a\xba\xa9\xd9n\xb6\xcc\xe7s\xb4Vl\xdb\x8e\xd9|\xc1|\xbe\xe0\xee\xbd\xbb\xfc\'\xff\xc9\x7f\xca\x7f\xf8\xa7\xfe\x14u]\xff\x96\xf0\\\xbf%r\xacR\n]\xdb\xb2^\xadY,\xe6\xfc\xdd\xbf\xf3w\xd0\n\xaa\xbaF\x81x\xa2\xed\x96m\xdb2\x0c\x01c,C\x088\xab\xb9X-9&lt;&lt;db\x1dgg\xe7|\xe37}#\xab\xd5\x8a\x07\xf7\xee\x10BB+\xc5|&gt;\xa7\x94\x82\xb7\x1a\xeb&lt;g\x17K\xba\xaecZWh\xa59\xbev\x9d\xedfK]UP2\xcd\xa2f:\x9f\xb3\xdd\xb4\xe4\x9c)\xa5\xb0\\\xae\xd0J\xb1\xddn1\xc6P\xd5\x136\xdb\r!\x04\x8c\xd1\xfc\xa5\xbf\xf4\xdf\xf0;\x7f\xd7\xef\xe2c\x1f\xfb\xd8\xd3\xbe\x9c\xbf!\xc7\xfb\xde\xb0J)\xf4]\xc7W\x7f\xf5\xab\x18c8;;\xe3\xe7\x7f\xeeg)%\xb3\x98\xcf\xe9C\xe0\xed\xbb\xf7\x89!`\x94\xc2[\x8b\xd6\no\x1d1f2\x85\x9231E\x9e\x7f\xfe6\xa7\'\x0f\xb9w\xef&gt;\x94B\xce\x99\xe5z\xc3\xfe^!\xa5\x84\xf7\x9e\xe3\xc3\x03&amp;\x93\x86\xf3\xb33\x86a\x10\x0f\xa3\r9E\xc9\x9f(\xc4\x10X\xafVT\xbeBiO\x08\x81\xc3\xa3#J\xce\xac\xd7+\x86\xa1g\xd3\xf68gi7[\xae\xdf\xb8NN\x997_\x7f\x9d\x17_|\x91\xa6i\x9e\xf6e\xfd\x97&gt;\xde\xf7\x86\xd5w=_\xfb\xda\xd7y\xfd\xb5\xd7\xf9\xe5/\xfc2\x7f\xed\xaf\xffU\xee\x9f\x9cP\n&lt;&lt;\xbb\xc0\x19MN\x91ySQ\xd5\x15\xdez\xba\xbe#\xc4\x80\xf7\x96\xe9t\xc6\xcd[\xcf\x11\xc3\xc0\xf2b\xc9\xd9\xf99]\xd7\xb3\xbf\xbf \x85\x84\x02V\xab5\xb3\xe9\x14\xa35\xb9\x14r\x0cL\x9aJ\x8c\xafd\xf6\xf6\x0e\xb8\x7f\xe7\x0e\xab\xd5\x12c\x0c{\x8b9\x877\xaeszr\x86\xa2\x10c\xe4\xee\x9d;@\x06e\xb8\xd8\xac\xa9\x9cc\x184\xa5\xc0j\xb9\xc2\x1fW\xfc\xe8\x8f\xfe\x187n&gt;\xc7\xc7&gt;\xf6Q|U=\xedK\xfb/u\xbc\xaf\r+\xe7\xccW\xbf\xfa\xab\xfc\x7f\xfe\xdb\xff\x96\x9f\xfd\xd9\x9f\xe1k_\xfd\x1agg\'\x94\x9cq\xce\x91R\x94P6i\xb8~\xed\x98\xaan\xe8\x87\x1e\xd6\x85\xc3\xc9\x01]7PU\r\xcb\x8b3\x96\xcb%m\xdb\x13b`ooNN\x91\x18#J\x15n\xdd\xb8\x86w\x9e\xe5f\xc3\xd0mQ\xc0\xcd\x9b7\x891q\xff\xe1)\xd3\xf9\x9c\x982)%r\xca,WKB\x08\xe2\xe5\xaa\x8a\xae\xeb\xd8n[\xea\xdac\xadB\x95B\x88\x11\xad\xa0\x14\xc5r\xb9\xa4\xaak\xfe\xd9\x0f\xff0\xeb\xcd\x86\xff\xe9\x1f\xfbc\xbc\xfc\x89\x97/\x93\xf9\xf7c\xce\xf5\xbeM\xdeK)\xb4\xdb-\x7f\xfd\xaf\xfdu\xfe\xaf\xff\xc5\xff\x85\xb3\xd3\x87\xb4\xeb5\xdah(\x85\x02\x18c8\xd8[0\x99\xce\x99\xcf\xe6\xf4]\xc7\xf9\xf9C\xfa&gt;2[,\xe8\xba\x8e\xf5z\xcd\x10\x021\x04\x941T\xdeq\xed\xf8\x88!D\xda\xed\x96ISQY\xcb\xd0\xf7\xac\xdb\x9e\x92\x0b]\x8c\xa0\x14\x9f\xf8\xc4\xa7\xd8lV4\xd3)w\xdf|\x8b\x93\xd3\x13J.(\x05\xa9(\xa6\x93\t)\x05\xb4\xb6\x14\n\x95\xf7h\xad\xe9\x87\x9e\xf5zKL\x89\x82\xc2;\xcb\xed[\xcf\xd1\xb5\x1d\x17\xab5/\xbc\xf8\x02\xff\xd6\xef\xff\xb7\xf9\xe3\x7f\xfc\x8f\xf3\xc9O~\x12\xe7\xdc\xfb\xce\xb8\xde\x97\x86UJ\xa1\xeb:~\xe9\x17~\x91\xff\xfc?\xff\xcf\xf9\xc2\x17\x7f\x99\x92#\xab\xf3s\x16{{\xa4\x18\xe8\xba\x16\xad4\xb7n\xde\xa4j\x1aR\xcc\xe4\x1cy\xf0\xf0\x01)f\xb4\xb5L\xa7\x13\xb6\x9b-\xf7\x1e\x9e\xe0\x9d\xc5zGSU\xec/\xe6\xcc\xa6S\xb6\x9b-G\x87\xfb\xb4\xdb\r)D\x94\xd6\x14\n\xdd\x109\xbb\xb8\xc0\xbb\n\xb4\xa2n\xa6\xc40\xa0\x95\xe4b\xe7\xcb\x15}H\x90\x01\x12\xfb\xfb\x87,\xf6\x17&lt;\xf7\xdc-\xea\xaa\xe1\xfe\xfd;\xbc\xf9\xc6\x9b\x9c\x9c\x9dS(\x84\x988\xdc\xdf\xc3\x18\x8b1\x86\xb6\x1b@\xc1\xf3\xb7o\xf3g\xff\xec\x9f\xe5\x0f\xfd{\xff\x1e\xde\xfb\xf7\x95q\xbd\xefBa)\x92\xb3\xbc\xf2\xb5\xaf\xf3_\xff7\xff5o\xbf\xf5&amp;\x8b\xd9\x94\xb7\xdfz\x8b\\\n\xb7\x9e\xbf\xcd\xfeb\x9f\xd7\xbe\xfe\x15\xdam\xcb\xd0\x07(\x85\xf5z\x83\xd6\x8a\x92!\xc5H\xd34\xd4\xde\x13\xfb\x01\xab\x15{\xb3\x19\xdaJ~\xb47\x9bR{O\xe3\x1d\xb3\xa6\xa1\x84\x81\xc9bA\x8c\x81\xed\xb6%\xea\xcc\xaci\xd0\xdaP55\xd3\xc5&gt;\x9b\xcd\x9a\xa1k9\xd8[\x10R\xc6\x87\xc0\xfd\x87\xe7X\x03\xfd0\xb0Z^\xe0\xad\xa5\xaaj\x9a\xc9\x84\xbai\x98\r\x81B\xe1b\xb9\xe6b\xb9\xc6;\xcbd\xd2p\xb07Gk\xcd\xe9\xc9C\xfe\xe6\xdf\xf8\x1b|\xe0\x03\x1f\xe0\x9b\xbe\xf9\x9bq\xce=\xed\xcb\xff\xeb&gt;\xcc\x9f\xfbs\x7f\xee\xcf=\xed\x93\xf8\xf5\x1e\xa5\x14\xda\xb6\xe5\x9f\xfe\xe3\x7f\xc2_\xf8/\xff&lt;?\xf8\x03\xff\x08\xad\xe0\xf6\xed\xdb,\x97\x17c+Aa\x8db\xb3Z\x91S`ROXm\xd6\xa4\x18\x08\xc3@S{\x9c5,fS&amp;\xd3)M]\x91\x86\x8e\xc5b\xca\xc1\xc1\x1e\x07\x8b\x05\x95\xb5\xe4Rp\xc60\xc4@\xc9\x89\x923\xdb\xf5\x86.%\xb6mGL\x11\xad5g\x17\xe7\\\\,\x99\xcf\xa6T\x95\xe7\xee\xdd\xfb\\\xac\xb7l6\x1bB\xca\x18\xadh\xdb\x8e\x10#\xddv\xcb\xbd\xfb\xf7X\x9e_\xb0\xddl\xa4\xa2\r\x81\x98\x121\xca\xeb\x95\x92\x99L\xa7(`\xb9Z\x91R\xe1\x17\x7f\xf1\xe7\xb9v|\xcc\xad\xdb\xcf\xcb\x04\xe1}\xe0\xb9\xdeW\xa1p\xbb\xdd\xf2s?\xf33\xfc\x17\xff\xc5\xff\x8d\x1f\xfc\x81\x7f\x88\xb5\x86\xda{\xb4R\\\xac\xd6\xa4\x94\xa5\xd2k\xaa\xd1\xe3X&amp;\xf5\x946\xf4\xa8\\\xb0\xd6\xa1HX\xa51u\xc5d:#\xc6\xc8\xc5\xd9)\xdeW,\xf6\x168\xe70h\x8aV\xe4\x18\xe9\x86\x1e\xef,\xa5(r\x8a\x84\x94\xe9\xfb\x81\xba\xf6h\x14w\x1e\xdc\xa3\xeb\x03MS\xb3?_\xb0n\x07\xee?|@\xe5=\xdb\xaeg\xb9\xda\xa0\xb4\xa2\xe4\x821\x86\\2U\xed\t!R\n\xc4\x98\xc8\xa5\x10cB+MU9\x8c5\xc4\x04\x90\x891c4|\xea\x93\x9f\xe0?\xfe\xdf\xff\xc7\xfc\xce\xdf\xf3{\xb8~\xe3\xc6\xa3\x1b\xf8\x8c\x1a\xd9\xfb&amp;\x14\xa6\x94\xf8\xe5_\xfa%\xfe_\x7f\xe9\xff\xcd\xe7?\xffy\xeaJr\x8e\x14#\xf5t\xf2(\xcc\xa5D\xdbv\xd4Z\xb3\xbf?g6\x9b\xe3\xfc\x01}\xd7\x93s\xc69\x0b\n\x8a64\xcd\x94!\x06j\xabQ(\\]\xa3\xb5\xc1kM\xd6\x8a\xa0\r\x00\x93fB\xdb\xb5(\xab\x99\x18\xcb\xc6\xb4(\xa5\xd8\xac\xc5\x98\x8d\xd2L|\x85Bq\xe3\xf8\x88Ye9[-1ZQP( \xa6D\xd7u\xa4\\\xd8\xb6=\n\xb0\xd6\xb2\xd8\x9b3\xf4=\x14\xe8\x86\xc0\x10"\x8cF\x16SD+MV\x9a_\xf9\xd2\x97\xf9?\xfe\x9f\xffO\x9c\xafV|\xe63\x9f\xe1\xc6\xcd\x9b\x1c\x1d\x1e\xb1\x7f\xb0\x8f\xd6\xcf\x1eH\xe5}\xe1\xb1J)\xbc\xfe\xda\xeb\xfc\xc5\xbf\xf0\x17\xf8\xbe\xef\xfb&gt;^\x7f\xfdur\n\xd2WJ\x81\x0f|\xe8#\x0c\xdd\x96\x07\xf7\xee\xb1\xe9z&amp;\x95\xe7[&gt;\xfe!n\x1c\x1fP\xd75\xdeW(\xa5\x18B@\x15A\x1e`59+\xa6\xb3\tm\xdbr\xb1\xda`\xace\xd24b\xb4@\xdb\x0f\xa4\x94\xd1V\x13\xc7\xe4\xdd\x1aK\xd7\xb5l\xdb\x8e\x93\xd33\xee\x9f\x9fRbbVW\x94\x9c\xd9\xf4\xbd\x8c\x86rf\xb5\xe98Y\xadQ\xdab\x8c"\x87\x88R\nm\x80\xa2h\x9a\x9af\xd2\x90B\xc4{O\x1f\x02m70\x84\x81\xa1\x0f\xc4\x9c\xf0\xd6QyGQP24\x93\t7\xae_c\xb1\xd8\xe3\x83\x1f\xfc\x10\xff\xd1\x7f\xf4\xbf\xe3[\xbe\xed\xdb\x9e9\xcf\xf5\xbe\xf0Xg\xa7\xa7|\xff?\xfa\x07\xfc\xd4\xe7\x7f\x82\xa3\xa3C\xdez\xeb-(\x92\x97\x1c\x1f\x1d\xe1\xac\xe1\xe1\xc5\x92!D\xbcs\x1c\xcf\x1bn\x1e\xcc\xb9}\xed\x80\xc6I\xa3Qi\x85b\x82\xd2F`,Fc\\E\xca\twt\xc0\xa6\xedX\xf7=\xd3\xa6\xa61\x96\xa6\xf1\x84XhcdH\x99T\xa0\xe4L\x1f\x13\xf3I\x856\x86\xbd\xc5\x82\xd9\xd9\x82\xe5\xf9\x92n\xbb\x04\x05\x8b\xaaB\x9a\x1d\x16MaH\x91m\x17\x18\x86\x88\x02\xa6\x95C)\xa0@\xe5\x1d\x86\x0c\n\xce\xce\xcf\xc99\xd345\x8b\xe9BB$\x8a\x10\x03\xfb{\xfb&lt;89!\xa6\xc4j\xb5\xe4\xf0`\x9f[7o\xb2X\xcc\xf9\xfb\x7f\xff\x1f\xf0\xe1\x8f~\x94\x83\x83\x83g\xca\xb8\x9ey\xc3\xca9\xf3S\x9f\xff&lt;\x7f\xe5/\xffe\xde\xbas\x97\x8b\xe5\x05\xdbv\x833F\x1a\x929sz\xf2\x80\x94\x06\x9c\xd1\\\xdb\x9b\xf2-\x9f|\x81\x97\x9e?fQW8]a\x8d#\x95\x84w\x86\xdaWXg(Z\xa1\xd0\xc4\x0cE)\x9e\xdb\x9b\xd2\xe7r\xd9PM\x05*ki\xfb\x80\xd20\x0c\x81b,\xc5X\xd6\xeb5\xa9\xc0\xe1|\xce\xed\xe3C6m\xcb\xfd\xfb\xf7\xb9s\xf7.\xebm;\xbe\xc6\x84\xfd\xe9\x84\xc5\xa4\xe6d\xd5\x12K!\xc5$MQ2\xb3\xe9\x8ci]\x03\x85\x8bM\xcb\xb6\xef\x89Q\xa1\xb4F\x1b\xcb\xc4{\xea\xa6f\x7f\xff\x90z2e\xb5ZR\xcdg\xf8\xba\x86R@i&gt;\xfe\xb1\x8f\xf1\xe5/}\x99\x93\x87\x0f9&lt;8x\xda\xb7\xea\x1d\xc73oX\x17\x17\x17\xfc\xf0\x0f\xff0\xaf\xbd\xfe\nm\xdb\xb1Z\xae\x18\xfa\x81b\x0cu]\x91bdZ7\xbc\xf0\xd2\x0b\xbcp\xb8\xe0\xb9\xa3=\x0e\x17\x13\xa6ME\xa5\xa0\xb2\x9e\xba\xaaP\x05jo\xd1\xda`\x9c&amp;)\x99\x11*\xa5@+\n\x1ac-\xceX4\x96\x94#Vi\x0e\x175\x14E\x9c4\x82\\\xc8\xd0;\x83Q\x90\x8f\xf6H9\x13R\xe1\xec\xc5\xe789}\x9eW\xef\x9f\xf1\xd5\xaf\xbf\xc2\xc3\xe5\x05\x07\x93\x86\xbd\xba\xc2+\x852\x8a\xc9d\x8eu\x15}\xb7\xc1\xf9\x1a\xeb\x1c}\xdf\x83v\x0c9\xb1\xdd\x06..\xd6\\,7\\\xbfv\xcc\xcc9b\x08\xac.\xce\xb9q\xed\x1a!\x04\xaa\xa6fu\xb1\xe4\xc7\x7f\xec\x9f\xf1K\xbf\xf0\xb3|\xfa\xd3\x9f\xe1\xeb_\xfb:\xcf?\xff\x02\xcd\xe4\xd9\x991&gt;\xd3\x86Ur\xe1\xf3?\xf1\x93\xfc\xe3\x1f\xfa!r\xd1\x80F\xa3\xa8\xbce\xd2\xd4\xec\xcf\xe7\x1cMj&gt;r\xfb\x1a/=w\x9d\xa9wxo\xa9\xbdcQM\xa8\x9d\xc1c\xb1N\x93B\xc1*M\x01\xf2\x90\xd0\x16\xac\xf5\xe4\x98@)\xbc5\xe8\x02\xa6\x80\xd6\x19\xe5-%e\x88\xa0\x8c\xc6j\x85\xb5\x9a&amp;)\x92\x97PZR\xa6\x00\x148\xa8,/\xee/\xf8\xc4K/\xf2\xea\x8b\xcf\xf1\xc5\xaf\xbd\xc2\x9d\xbb\xf7\xa4\x05R9\xb4\xd1L\xbceoo\x8a\xb5s\x9c\xf5hk\t!2\xbbX\x13rB\xeb\x16\xc8t\xfd\xc0\xf9\xd99)\x05\x9c\xb5L\xa7s\x16\xfb{|\xf1\x8b\xbf\xc2l:\xc5\xaaB\xce\x91{\xf7\xef\xd3\xbc\xfa\x1a\x7f\xe5\xaf\xfd5\x86\x10\xf9\xbd\xbf\xef\xf7P=#3\xc6g\xda\xb0\x860\xf0c?\xfec\xbc}\xf7m\xac\xb5\xc4\x18\x899Q\xd757n\xde\xe0\xa02|\xe2\xd6u^\xbaqH\xa5\r\xdeY\x941L\x8c#\xe7D\x8cP9G\x8e\x05J!\x86\x8c\xd6\nP\x94\x94\x89)`\xac\xc1j\x8b\xd1\x1a\xa35\xdahT1\x94\x921h\xf0\x1aRF\x95\x02)\x89\x81\xabB\xce\x01\x85B\x8d\xde\xa8)\x86l\x14\x13eh^\xbc\xc9\xcd\xa3}^}\xeb\x1e\xaf\xdf\xbdK\xbbm\xe9\xfb\x8eT2\xa1\xef\xa8\xab9\x93\xa6\xc6U\x1ec,{\xf39\xaer\xbcu\xb2\xe2b\xb5\xe4\x8d\xb7\xee\x10b\xa4\xa9\x1b\xaa\xba\xa2o[N\x1eFbJlG\xb0\xe1K/\xbe\xc8\xdbw\xde\xe6\xde\xbd\xfb\xfc\xe0\x0f\xfc#\xbe\xfa\xd5\xafr\xfb\xf6m\xbe\xf1\x9b\xbe\xe1\x99\xc8\xb5\x9e\xd9\x06i)\x85\xd7^}\x8d?\xff\xe7\xff&lt;\xf7\xee\xdde\x18\x06rJ4u\xc3b1\xe7\xda|\xce\'^\xb8\xc6\xf3Gs*\xad\xf1\xce\xe2\x9d\xa1\xb2\x16c-\x90\xa5_\xa5\x0c9e1\x18@)-\x18)\xe4{Vk\xbcuh\x14\xc6J{A\xa3@\xc9\xcfR\x14\xa5$r.\xe4\x94\xc9%C.P@+\r\x06JN\xe4\x92QJ\x16,\x8c\x82\xc6{\x8e\xf7\xf68\xda\xdf\xc3O\xa6\xd4\x93)M\xdd0\x9dL\x98\xf8\x8a\xba\xf1T\xde\xd1T5\xb5\xf7\x1c\xec\xcdQ\n6\xfd\x00#N\xbe\xa4D]Wl\xb7\xdde\xcf.\x84\xc8z\xdb\xa1\x94b\xdbu\xd4u\x85\xb7\x8e\xd7^}\x85\xd5r\xc5w\x7f\xcfw?\x13`\xc1g\xd6c\xe5\x94\xf9\xc2\x17\xbe\xc0\x9d\xb7\xdf\xa6\xa4LN\x01\xef+\xe6\x8b=\xf6\xa75\x1f\xb8v\xc0\xb5\xf9\x04\x8b\xc1y\x8f\xb2\x90\xb5\xe4Mi\x08h\xa30\xdaP(\x14Ud8M!\xe7\x82\xb1\x1a\xeb,\xce:TQ$2V\xcbb\x84\xb1\x06c-9\x15H\x02\x8bQ\xc6\xa2,\x90\x10\xaf\x953\xa8B*\x08\x12\x06\r*\x81\xd6\xe4\x98PZ\xd6\x9f\x9aJs\xd3\xcd\x99\xd75]L,7\x1br\x8e\x14\x85\xcc\x12\x01c=1\x17L\xcc\xbcx\xed\x98T\nC\xdf\xa1K\xe2|\xbd\xe1\xde\xbd\xfb\xf4!\x12\xcf\xcf8\x98/\xa8+O\x8c\x99\xe5\xc5\x85\x9c\x17\x9a\xa2\xc09\xcb\xdf\xfb{\x7f\x97\xfd\x83}\xfe\xd3\xff\xf4\xcfr\xfd\xc6\xf5\xa7z\xff\x9eI\xc3*\xa5prz\xc2\xdf\xfa[\x7f\x8b\xb6\xdd\x92bD\x19\xc3\xb5\xeb\xd7\xa8\xbc\xe3\xc6\xb4\xe2\xda\xacA\xa3\xd0F\x1a\x90)H\xa8\xc2\x19\xb4V(e0V\xb0\xe7)\t\x12\x14@{\x851\x06g-\xde9\x19\xa3\x90%\x81O\x85\x9c\nYeT\x01S9J.\xc4&gt;\xa0\x8c\x12\x83S\x90C\x19\xbd^D\xa3\x81\x8c\xd22\xc3\xcc\n\xc8\x90S\xc1y\x03%c]a\xea\x14\xde6(\n))\x86\x98H\x14\x86\x1c\xe9\x86\x81\x92\x13{\x13\xcb\xb5\xbd=\xce\x8f\x0e\xd9lZ\x9a\xbaa\xb5Z\xd1\x0f\x83\xf4\xe1b\xa2\xa9&lt;\xb7n\xde\xa0\xed[\xba\xae\xa7\x1fz\xba&gt;\xd3\x0f\x039&amp;\xfe\xe2_\xfc\x0b|\xf2\x93\x9f\xe0O\xff/\xffWO\xb5q\xfa\xec\xb5l\xc7\xe3G\x7f\xe4G\xf8\xa7\xff\xf4\x1f\xb3Y\xaf0Fs\xed\xda\x11\x93\xda2\xf7\x86\x9b{3&amp;\xfe\xd1\xa9\xe7,7\x16\xad\xc8\x05@1\xf5\r\x951c\x08qh%\x1e\xcc*C\xe5=\xd6Y|U\xe1\xebF\xfe\xf8\x1a\xef**_\xa3\x95\xc68\x87\xf3\x0e\xe3,\xda\xc9(&amp;\x93%&lt;\x1a5\x86\xc8B)H\xce\x05\xe4\x92\xd1\xc8\xf8\x06%\xdd\xac\x98"%J\x8e\xe6\xb4\x1ag\x99\x05C\xc2\x1b\x988Cc=J+&amp;\xde3\xaf\x1d\x93ICSW8g\x99\xcdf(\xc0Y\x079\x03\x8a\x10z\x86&gt;\xb0\\\xae\xd9l\xb6\xb4m\x871\x06\xad5]\xdf\xf3\x8f\xff\xf1?\xbe\xdc\x85|Z\xc73\xe7\xb1J)\x84!\xf0\xfd\xff\xe8\xfb9y\xf0\x00c-\x07\x07\x07L\x9a\t\xb5q\xdc\x9c5L\x9dB+\xd0Z\x11c\xc4j\x85\xd1\x8ey5\x93\x0fe\x0ccF\x85\xca\n\xad5\xd6\x1a\xac\xb1\x94\x92)I*=c\x0cE\x15L1\x14\xa0X\x8d5\x1a\xa5\x95t\xdc1(+\xbf\x1b\xfa@\xec\xc2\xd8\xfa4\x04UP\x05\n\t\x85\x81\\\xd0\xd6\xa2\x15(\xeb\xc8C$\x071\x04T\xa1(\xf1\xae9\x15\x94*8o\x89)\xa1\n\xe8\x92\xf0\xa6\xa04\x1c\x1f\xec\xb1\xb7^S{ORP9\xcby]\xd3\x0f\x81\xa2\x0c\xf7\x1e&lt;\xc4{OUW\xa0 \xc4H\xca\x85\xa9\xb6\xcc\xe6{$\xe0\xf57\xded\xb9\\r\xed\xda\xb5\xa7v\x1f\x9f9\x8fUJ\xe1\xcb_\xfe2\xff\xecG\xfe\x19%\'\x9c18\xeb\xf0V\xb1\xd7x\xa6\xdeR9\t1)\nB\xd4iC\xe5&lt;FI"&gt;1\x8e\xca\x18\xb4\xd18k\x98\xf8\x8a\xca9\xac5\xf8\xcaQO*\xeaI\x05Ja\x8a\xc1:\'^J)\x19\xf9DP(\xe2\x10\t]\xa0\xefzy\xfa5\x14\nJk\x94\xde-\xbeJ(-\nJH\xa4\x94 \xe6G\xc9s\x96Y"\xb1\x90\x83\xfc\x9cR\n\x94B\x17MH\t\x8d\x01\x14)%\x14\x85y5\xe1po\x0f\x8db1\x99\xb1\x98O)9\xd1\x0f\x1d1g6mO\x88\x89\xd9l\xca|:A\x8f9d\xdd\xd4(\xad8::\xc2{\xffT\xef\xe33\xe5\xb1J)\xf4}\xcf\xdf\xf9\xbb\x7f\x97\xd3\x933\x16\xf39G\xc7\x07L\x9a\x9a\xc3i\xc3Q\xed\x98\xb8\x82\xd3R\x91\x19\xa3\x98\xd65V\x8bQ\xa4\x14q\xcaP\xd5\xd5\x88z\x00\xad\x14\xdaJ\x12\xefjO\xa6\xe0\xbd\xc78+\x89\xbfu\x12\xd2\x1c\x840`\xb4F\x99\x11\xa3\x87`\xeau\x11\xff\x97\xad\xa6\x84D\x8ca\xf4\x82#:a4,\x05\xa3\xa7+Xc\xc8H\xf5\xa8\xf4\xb8\x8d\x9d\x0b)\x14\xf2\x95M\xec\x10\x07\xac\xb1\xe8\\\xc8\xa1\xa0u\xcf\xbc\xb1\x1c\xee\xcd\xb9X\xad\xb8\xf3\xf0\x94[7n\x12\x86\xc0\xb6\xed\xd9_\xccX\xad\xb7\x1c_\xbb\x8e3\x8a{\xf7\xee\xe0\x9d\xa5\xaa*\x8aR|\xf8C\x1f\xe6\xcf\xfc\x99?\xc3\xfe\xfe\xfeS\xbd\x97\xcf\x94a\x01\xbc\xf2\xca\xab\xfc\xc0\x0f\xfc J\xc3\xc1b\x1fk\x0c\xb5\xd1\xb8R0\xaaH\xbed4\x1a-\x1b7c[\xc0\x1a\xcb\xc4Wxm\xa9\xbd\xc7\x1a\x8b\xb5b\x10\xdaZJI\xd8J\x80r\xde:P\x8a\xca\xd5\x97\xe1T+E\xb6Vr1+\x15\xa2R\n;\xb1\x94\x02%%\x86\x14H&amp;\x91c$\x84 F\x9521\x0bT\xd983V\x92\x85\xb6\x0b\xa0\x15\xa9$\x8c\x92\xd7\x95t\xac\x90\xa2\x84\xbdT\x12\x06E\x1c\x12\x95\xaa@\'RQX\x1di\xea\x9aI]a\x8cf\xbdZ\xb1\xb7\xb7`\xb5\xbe\xcb\xde\xde\x1e\x87\x07\x87X\xab\xd8\xb6-\x93\xc9\x0c\xd4\x960\xf4\xe4\x94\xf8\xb7~\xef\xef\xe5[\xbf\xe5[\x9f\xb8\xd6\xff\x9by&lt;3\x86UJ!\x84\xc0?\xf8\xbe\xef\xe3\xf5\xd7_c\xe8\x05\xad\xd9T\x0b*\xa3\x998#q;CI\x19c4N\xe9\x11q \xcd\xcd\xcax\x8cV\xc4\x980\xd6\xa2@&lt;S\xe5\xa0\x88g\xb2c\x9fK\x8d\x06\xa4\xc7\xa47\xe7\x8c\x1a\xbf\xb6\xce]\xee\x03*%9Z\x8a\t\x1b\x06rI\xb2\xe1\x13\x131-I9Q\x14\x92\x87\x85 9\\Q\xe4\x9c(IBe\xa6Pb!\x93\x08d\xc9\xb3\x8a"\xe5L.\x05\x8c\xa1d0#\xea\xc1\x18\xa8\x9c\xe1`&gt;\xa5\x1f\xf6Y\xb5\x81.\x06\xa6\x93\x86\x87\xa7g\xec\xed-\xb0\x9d\xe6|)\x85M\x8c\x81\x94\nUUq\xfd\xfau\xc9\xbf\x9e\xf2\xf1\xcc\x18\x16\xc0W\xbe\xfce\xfe\xde\xf7}\x1fgg\'T\xae\xc6ZK?\xf4\x98iCe\x14\x95\x93\x8ex\xca\x1ae%\xc4y\xe3pZK\xc5g\xc71K\xce\x902\xb6\x91&lt;\x8a\x921\xdaJ\x93TIRo\xb4C\x1b\x8b\xd2\x9a\x94\xb3$\xf3E\xbc\x9b\xd2\xbbD\xbf\x8c\xa8\xce"\xdf\x1bgw\n\x83r\xa0\x8ce}qA\xd7\t&gt;\xcb\x19\xcb\x10\x06(E\xfab\xa9H\x88\xd4\x90F\x83SQ1\xc4A\n\x87$\x18y\xe7\x9c\x8c\x88\x8a$\xe39f@zjuUq\xbem\xa9*\xcfl:a\xd3\xf6\xdc\xbf\xff\x00c\x0c\xc6h\xac\x93\xa5\xd9&gt;\xf6(\x05_\xfe\xf2\x97\xd8n\xb7O}\xb4\xf3\xcc\x18V\xdb\xb6|\xff?\xfa~\xbe\xfe\xb5\xaf\x91SBU\xe0\xbda\x7f:eo\xd2`\x9d\x93\xfcG\x813Fn\xccX\xee\xcb\xc2h&amp;\xe7\x8c\x1f\x17"v=\x1c\xef=\xa6\xb2X\xeb(\x08\x80n\xe7\x95\n\x90Rd\x18Z\xb46h\xa5I!\xa3SFi\x85\xf7;\xc8\x8d\x86\x9c\xc9\x80u\x0e\x85"\x97\x84\x8d\x11\xe7\x1d!\xf4\x94\xa2d$\xa4\x0c\x99LV\x85\x92\n%\x03\x1a\xb4\x82!\x8e\x1dz \xe4 \xe3 k\xa5\x99k-$-\x95\xa2*\x94\xa2h\xea\x9a\xba\x1e\xa8\x9c\xe7l\xb9b6\x9f\xb1\xe9{\xba\xa1\x17&gt;\x8a(@\x07A\xa6\xcaR\x86\x1b{sO\xfbx\xeagP\x8a&lt;\xb5?\xf6\xa3?\xca_\xff\xab\x7f\x95\x18\x07|\xe5\x99\x8cOhe4\xd6Z\x86!\xa0\xb5\xc1Z\xa9\xee\xacb\xc4=\t\xe4\xb7\xf6\x15u\xd3\xc8\x85U\xe2\xc1\xb4\xd6(\xa3\xc9)Iu\xa6-N;\x9cv\x18\xeb\xb0\xcea\xb5\xc1\xfb\x06e4(\xd0Z\xa3\xb54Q\x8b\xd6\x14c(JQ\xbcCiM.YF89S\xb2\x14\x04\xb6\xae\xb0\x8d\xc3M&lt;\xbe\x91U\xad\x9c\xc6\xbe\x1a\x99\xd4\'\xf2\x98\xc4kk\x18RO\x08\x039\x17\x88\x11\xb2B\xa9\x8c\xb5\x86R\x14Z\x15*\xaf\x05\x89a+\x16\xb3=\xbcs\x9c_,\x891\xe3\xc7u\xb0R\x905\xb5\xae%\x8d\x0f\xd6\xaf|\xe9\xcb\x9c\x9d\x9d=\xed\xdb\xfa\xf4\r\x0b\xe0\xfe\xdd{\xfc\x8d\xbf\xf6W9??e&gt;\x9b\xe2\x8d\xc6;\xe93M\x9aF:\xefJr)o-\xe4BL\x92\\W\xbe\xc2h\x83\xb7\x96\x14\x13\x19(h\xc9m\x92\xb4$(\x90\xb2\xb4\x02"\x91\xa2A\x8dF\x99\xb3x\x10\xad\x0c\xda\x1a\x94\x91\x90\xa7\xfch F\x93\x9c\xa5h\x8d\xb2\x06SWh\xef\x881\x00\xe2\x95\x9c\xb3Xk0\xc6J_Ji\xcc\xae\x7f\x95\x91\xed\xe9\\\x04\x9e\xdcw\xc4\x94\x08C\xa0\x8f=(MH\x81\xa1\x93\x11\x8f\xb7\xe29\xad\xb6\x840\x10\xc3@\xdbw8\xef1\xc6\t\x93\x8d\xf58\xe7\xa8\xaa\n=^\x03\xf1\xb0\x9e{\xf7\xee\xf1\xe6\x9bo&gt;\xed[\xfal\x84\xc2;w\xde\xe6\x8d\xd7_\xc5Z\x01\xd1\r}\x0f\xd3\t\xe4L\xe5*J\x0e\x98\xb1\xe1\x9dr\xc2\x19\x8b\xd1\nm\xcc\xd8\xf9~\xb4T\x90R&amp;\xea\x84C\xb6Yr)\x90$_I9\x92\x92\xf4\x90r\x9fpNnH\x8a\x19\xa5\xa4u\xa0\x94\x14\x06:*\xd0\xb2|\x8aR\x92\xaa\xc9\x1ba\x8c\xa5jjR\x88\x0c\xdb\x81\xd8F1\xf6\x9c)I\xa1\x8d&amp;\x17MII\xb0\xf8\xa5@\x96\xf7\x081RbAe\xa4\x89j5\xc6Y\x94\xd5\xf4m\x87q\x06\xa34N\x8b\xd7+)\xe2\x8d"\x1a\x8dV\x850\x0c\x00x\xe7\xd1F\x13M\xc4\x18\t\xf5\x93\xc9\x84\xcdz\xcdj\xb9z\xda\xb7\xf4\xe9\x1a\xd6\x8en\xf1\xd5W\xbe\xce\xbd\xfb\x0f\xc89_.&lt;8\xe7d\xef/\x0eh]\xd0F\x9a\x88\xc6\x9aq\xbe\'\xd5a.\x19g,EI\xaeQy+#\x15dxL)\xa4\x18\t\x05\x94\xd78#\x9e\xcdhCQ\x11e=1\x071\xd01\xc9\xcf1\xa3L\x86\xa2PJ\xa3\x8a\x8cr\x8a\x92\xc14EX\xfcb\x0cxW\xd1\x96-1DbI\xa4\x9c\x05m\x9a\n\x18@K\x97\x9f\x08:\xcbh&amp;\x95L\x1c\x02\xce8\x941(U\x04\xe6\x93\x03yH\x84\x18Q\xdaR\xd5\x9e|Q\xb0\xd6\xb0\xdd\xaee\x85,\x0c\x97\x8b\x18%g\x9cu\xf4\xa1c&gt;\x9b\xb3\xde\xac%\xb5\xc8\xf9_\xe6\xb6\xbc\xff\rK)E\x08\x81\x9f\xfb\xb9\x9fg\xb9Z\xb1\xbaXJ\xee\x90\xc5k\xec\xaa\xab\x94\x03(A\r\xec\xca\x7f\xb2\xb4\x02\xac\xb1\xc8\xda\x8d`\xae\x14\n\xad\x95\x84\xc1\x10F\x08\x8a,"T\xbeBg\xd9fFgBJ8\x9d0Y\x03\x8a&lt;zD\x933J%\xacs\xe3k\n\xde=\xc5\x81\x94\xe2\xd8\xe8\x8cP2}\x1cd\x8d+Ib^\x92\x8cz\x94\x15\x02\x91\x123*C\x89\x99X"!%\xc8\x9aT\n\xe4\x84\xcf\x1am \x12\xc5h\x9d\xc1(C\xc9\x11U2)E\xd4\xb8\xa4\x9bS\xc6\x19MA\xd1\x0f\x03\xde\xd9\xf1\xfb\x85\x87\x0fO)\xc0l6\xc3\x18\xf3\xb4\xed\xea\xe9\xe6X\xa5\x14NON\xf8\xf2\x97~\x85!\x0c\xc4\x14\x19\xfa^r\x92\x94)\x14I\xa4\xadE\x15\x81\xb3H\xb2\x1fG[\x92\x1c)\xc6H\xc9E\xf0Q\x14bN\x82BHy4@0F\x93\x86@\xbbi\x89C$\xe5\xb1\xb9\x19\x03\xb9DI\xac\xd1\x18\xa5\ti\xa0\x1d\xb6\xb4\xad4\x1e\x87\xbec\xb3Z\xd2m7t\x9b\ra\xe8GO\x98\x08]$\xc7HQEx\x1b\xb2x\xb9\\\x92T}Z\xd1\x0f\x81.\x88Q\x95\x1c\x19R\'\xe7\xa4\rECV\xa0\xb3A+G\xea\x03\x90qV3\x9dL\xc89\xd1\xb6R\xb5n7\x9b1_\xcbh\x051F\xe9\xdfU\xd5eo\xaem[~\xf2\'\x7f\xf2\x92\xac\xf7_K\xc3\x02\xb8\x7f\xff&gt;\xf7\xee\xdf\'\x0c\x03\xce\n\xa2@k\xc50\x0ch\x059\x17\xb42x\xef\xd0\xda\n\xa9FN(\xeb\xa4\xd9i\xb4\xcc\x01k\x8f\xab+\x9cu\xcc\xa63&amp;\x93\t\xae\x96m\x1ac,\xda\x89W\xf2\x13A6\xe41\xe7Q\xb9\x10\x8b\x84\xd4X2\x81\x88Q\xe3|\xd2U\xe4\x18\xc7D]\xc2\x8b\x1d\x8b\x87\xbe\xef\xe9\xda\x9ev\xb3e\xe8\x039H\xeb\xa3\xa8B\xca\t\xa5\x0c%\'\x94VXg\xc7\rf\x81W\x97\x94\xb1\xca\xc8\xfb+\x85V\nk!\x95\x9eR"\x95\xb3\xd4\xd6\xa1Uf\xda4\x14eh\xa6S\xc9\xcfJ!\x8c}\x86\x98\x92&lt;\x90a\x90\x07P\x0b\n\xe3o\xff\xed\xbf\xcd\xd7\xbf\xfe\xf5\xa7z_\x9f\xaaa)\xa5\xb8\x7f\xff&gt;)%j_\x91S\xba\xd2\x90TP\xc0:\x83\x1e\x93^\xad5\x95\x9f\xe0}\x8ds\x15\xc6z\xac\x15h\x8b\xda\xedT)I\x9e\x8d5\x8f\xd6\xd1\xc7\x1b\xa8\x94B!\x1ePks\xb9La\x8d\x13Dh\x91\xa5-\xab4z\x84\xc5X\xe7\xa9\xaa\x86f2\xa3\xaa\x1b\x9c\x17cm\x9aFBN\xe1\x91\x87\x1d\xc3\xb3\xabd\x8fPk\x05\x1a\x9c\xd3X\xa7p\xde\xa0\xb5AY\x83v\x0e\xed,\x19Eb\xc0\xfb\nc*b\xc9\xa4\\Pz&lt;\xb7\xba\xa6\xeb{\xbc\xf3x\xef\xc9EP\x14\x05E\xed\x1d\xfb\x8b\xd9\xb8\x0b\xe9\xc6\xf7\xd4&lt;\xbc\xff\x80\xff\xfeo\xfcM\xd6\xeb\xf5S\xf3ZO\xd7c\x95"\xcdP\x14\xcey\xa6\xd3)\xc6\x18Y7\xd7\x1a7\xd2\xfehc\xd1HcSi\xa8\xebf,\xef\xc7\x91\x8c5\xb27\xa85\xda\x8e\x00\xbfqt\xa3\xb5\xbe\xc4\xb5\xbb\xdaI\xafj4\xb0\x02\x92\xe8\x8e\\\xa1\x99\xcc\x10\x03!GrL\xc4a \xa5 \xe3\x19y\x14\xb0\xce\xe3*\xa1\xa0\xf4\xb5\xc3\xd7\x8e\xba\xf64\xfb\r\xce;\\e\xf0\xb5\xa3i*\xeaIM\xed\xbc$\xefZ\x93A\xb0\xf5V\xa3lA\xd9\x82\xf5\x0e\xab\x1a\x86a\xc0\x18%\t\xbd*2)\xd0\ng\x0c\x95\xd5\xa40\xb07\x9f\xa1\x15\xcc\'5\xfb\xf3)\x94BH\x89I\xd30m\x04\xc3\xb5\x98\xcd\xb0\xd6\xf0\xb7\xfe\xf6\xdf\xe1W\xbe\xf8EA\xbb&gt;\x85\xe3\xe9V\x85\x08\xa6Jk\xc5t&gt;\x83\x02\xcb\xe5\x05\n\x18\xfa@AS\x8a"\xe5\x806\x131,\xf4e\xf7\xdcYKQ\xd2#\xdaU_Y\x8d\xaf\xeb,^\xc9k\xa7\x14\x85\x9f\xcazi:*\xc1Y\rI\x08?\x94\x12$B)\n\x955*\x172\x19g\x8d`\xddI\x02c\xd6ZBc\x90\x01\xb3\xaf*\xfa\x10(}\x8f\xa9%\x84+\xad\xc5\x10\x8d\xc2\x84\x846\x9a\x12\n\x83\x8d\xa4M&amp;\xaa\x88\xb5\x0e\x94A%\x8d\xa9-Vk\xda\xae\'\xe7\x88\xd2\x05\xaf\x0c\xebmOe\x1c\xcd\x08\xf7\x19\xba\x81\xe7\xae_c\xdb\xf5\xac7[\xbcs\xd4uC\x0c\x81\x8ba\x89R0\x9dN9&lt;\xbe!S\x86\x92\xf9+\xff\xdd_\xe1#Oi\x99\xf5\xa9\xf7\xb1n\xdc|\x0e\xef=\xeb\xbbw0\xc6\xe2\x9d\'\xa7$\xdeh\x0co\xd6:\xdc\x98\x9c*-\x1d\xf2T")*\x94\x15\xf8p\xde5&amp;G\xa4\xc3\xd0\xf58/\xe3\x17\xa3-\xd6\x1b\xf9{\x9c\xa1i\xa5\xa9\xaca\xe8[|U\x8d\x03d\xc9\x89\xd0\x9a\x94#j,\xe7\xaf\x8a\x00h#\xdd|\x93\xad\x8cuj\x8b\xd2H\x07\xdeY\xc9\xb7\n\xa4^\xfaKJg0\x055\x881\x92,\xd6\x08\xee+\xa9L\x89\x89b \xc7@J\x91\x983]I\x0c!\xd3L&amp;\xcc&amp;\xb5\xb0\tn[\xbcQ&lt;w\xf3\x1a\x0f\x1e\x9e\n\x93\xf3H\x14g\xb4f2\x9d1\x9d\xef\xa3\xada\xbb\xe9\x04\x85\xfa\x14\xb9L\x9f\xbaa\xed\xed\xed1\x9dN\xc7\xd0e\xa4|.\x19k+\x94\x91\x11\x08)\x11\xd30\x8eR\x18\x19\xf2\xc6D\xf9\xca\xb2D,\x19\xaf$\xaf\xa9\x9c ,\x9ds\xd2\xa32`\xbd\xac[\x8dI\x17*\x06\xeaj2\x0e\xaa\xa5M\x80\x96\xf6D5.\x94\x1a\xe3\t\x95\xa1d\xa1x\xd4)bS\x1aW\xfc\x03(\xf0\x13\x8f\xc1\x90uF+\x83\xd1PFf\x19\x90\xfd\xc82\xbe\xae2\x86\xac$\xf4\x9a,c\xa96v\xa4"c\x9f\xae\x0fl\x87\x9e\xa1\x18J\xd7\xe3\x8cfo6a\xd9ni\xaa\x1amd;{\xbb\xdd\xd2\x8e\x0c\xcc\xce5\x18ki\xbb-)\x05\xb6\x9bN\xaa\xca\xd9\x9c\xa1\x1f\x9e\n|\xe6\xa9\'\xef\xd7\xaf_\xe7s\x9f\xfb\x06\x12\xb0Zo\x891\xe2\x9c\xa7(%a(\x0b!\xac\xd2\x9am?\xb0\xea\x06\xce\x96k\xfa!2\xa4@\x18\x042\x92R"\xc5HL\x858\xc4q\xb4#FWt\xc1`PE\xd0\r)G\xca\x88_\x97q\x91$\xbd\xc6X\xdcn\xc7\xd0:\x946D\xa3Q\xd2}%[C\xb1\x96\xa85m\xe8\x08Av\x0bS\xca\x84\x12%o3\x96"q\x19\xa3\x05\xb1 3C1.5\xe2\xc7\x94\x06\xed\xed\xd8\xe57\x10\x15!&amp;6}G\x8c\x05\x95\x031\x0eXS\xd8\x9b\xcd\xd8\x9b-\x88)\x0bs\xf3\xd1!\x07\xfb\xfb\xec\xef\xef3\x9f\xcf\xb1\xd6\x12\x86\x818\xee\x1c\xe6$\xed\x93\x8b\x8b\x0b^y\xe5\x95\xa7\x92g=u\x8fU\xd55\x7f\xe4\x8f\xfd1~\xfc\xf3?)\xc9fR\xf8\xca\x8fh\x03\x81rf"!)\xee\x9d\x9ecG\x9c\xd5z\xb3\xa5\x9e8f\xf5\x94E\xcaLSM\x90)2\xda\x18l\x8eXk\x05\x12\xa3@[i\x8c\xc6\xa1\x97\xc6A\x91nw\x1a\x8d\xd3i/\xe5\xfa\xd8\xe2(9\x811\x98\x9cIZ\xa1C\x80\x14\xc7\xbeY\xcf\xaa\x1fP\x01R\x1a\xc4(+KI\x89b=\xe4HI\x99\x94\x15YCI U\x03\x94\x08\xbe\xb20\x1a]*\x92\xcf%\x1d\xc9\xc3\x882-\x91\x94\x0c)\xb5T\x93=\xe6\xf39\x07!s\xff\xec\x9c\xcdvCA\x8a\x14_\xd5L\x9aF\xe6\x8e\xc3@\xd7\xb6\x0c\xdb\x01\xe7+\xae]\xbb\xc6\x8f\xfc\xc8\x0f\xf3\xd2K/\xf1\x91\x8f|\x98\xa3\xe3\xe3\xdfT\xd4\xc3S7,\x80\x8f~\xecc\xfc\xfe\xdf\xff\xfb\xf9\xcaW\xbeJ\x0c=&amp;\x0e\xd0\xd4##\x8c\x91\x90Q\x8a\xec\xdf\x15h\xfb\x9e\xd3\xbeG\x9di&amp;\xf5\x9a\xf9t\xc3dRs\xbc\x98s&gt;\x9bp4\x9fq\x18\'L\x9b\t\xa5\x14\x9c\x93q\x8c1V\x16Xs!\xa5\xc2\x10\x86q.\xe7))3\xe4\x80*\xd0\x86\x8e\xd2#\xe1\xd98R\x06m\x14]\xd7S\xb4\xa1\xef\x07\xe20\x10\xa3,\xbd.7[\xf4:\xe3\xad\xc1\x99\xb1\xff6\x92\xa69\xab\xe9\x93(_\x84\x10\xe4a1\xd2\x15M1\x8e\xabi\x06\xa5\x1cC\xd9\xa2\x8c\xc6iG\xbf\xde\x92\x8c\xc1\x93\x98-\xf6\xd8G\x13\x94\xa1\xe9\x04\xf7\xde?&lt;!\xc5\x80\xf7\x0b\x81t\x0f\x83\x00\x10+\xcf\xf1\xb5\x1b\xbc\xfd\xd6\x1b\x1c\x1c\x1e\xf2O\xfe\xc9\x0f\xd1\xf7=\xff\xc1\x9f\xfc\x13\x1c\x1f\x1f\xff\xa6\x85\xc5\xa7nXJ\x89\x90\xd2\x1f\xf9#\x7f\x94_\xf8\x85_\xe6\xfb\xbf\xff\x1f\x08\xae\xc8h\x9c\xd6\x0c\xfd@c4%fjWSt!$\xe8\x12\xb4\xdb-\xf7O\xce\xd1\xd62\x9f\xcdx\xee\xe8\x90\xfd\xf9\x94\xd5a\xcbj;\xe3h/R\x19\xcb\xa4r\xb8\x14\x1f\xf5\xb6\x90\xa6d\x0c\x81\xa1HC\xb3dh\xc3@;D\xfa^:\xe3\x19\xc5\xc9\xb6e\xb3\xed\xa9\x9b\x86\x9c\x83\xec2j#|\xa0)\x11s"\xc4\x04Y\xa09\nEU{\x16M\x85\xd2\xd0\x8d4Hm\x1f\xe9Cb6\xa9\xc8\tb\x1c\x88y\xc7\x97\xa5`H2\xfb\x1c\x12\xa1$\x94\xd6T\xde\xcb\xcf\x96\x8eiS\xb3\\\xb78kXo[\x0e\xf7\x0f\xe8\xba\x8e\xaf\x7f\xfd\xeb\x97\xec\x80P\xe8\xc3\xc0\xb6}\x1d\xef\x0c\xcf=\xf7\x1co\xbd\xf9:?\xfb3\x9e\xbbw\xde\xe2?\xfbs\x7f\x8e\xc9d\xf2\x9bb\\O\xdd\xb0@\xbc\xd1s\xb7n\xf1\'\xff\x83?\xc1W\xbf\xfc\x05\xca \xebO9\x0e\xf4)\xa1\xbd#e\x8d.2\x84\xed\x93\x0cjc\x88\xc2\x82\xd7\xb6\xc4\x94\xe8\xfb\x81\xeb\x87\x07\xf4)\x12r&amp;\x96\xc2\xfe\xa4!\x94\x1a\x17\r\xb5\xb18\xa7\x05\xda\xa2\x15(G\x08\x03\xfd\x101\xd6\xb3\xed\x03\xdb!\x08=\xf7\x10Yu\x1do&gt;&lt;\xa3\xed\x07J\x16\xb2\x0e5\x0e\xc0\xb5\x82\xbd\xc5L\x1a\xa8\xde\xcbj?\x19\xad4\xab\xf3%\x9b\xd6\xb3\x98\xd48\'\x9b8}\xec\xd1H\x11\x90U"\xc4\x01\x8a\xc58\xc5\x90\x02C\xc9t}/\xa0@\x0c\x95\xb6(W\x0be%PB`\xdeTl\x87\xc0\xb4\xaeX.W\xec\xed\xed\t\x04\'\xc80&lt;!\xeb\xfe1&amp;\xae\xdd\xb8\xc1o\xfbm\xdf\xc1|\xb1\xe0\xa7\x7f\xea\xf3\xdc\xbbwW6\x88~\x93\x8eg\xc2\xb0v\xc9\xf37|\xe37\xf0m\x9f\xfb,\xaf|\xe9\x17QZ\xa6\xf7!\x06iF:\x83)\x82\xeal\xac&amp;\xc6\xc4\xd2hH\xe2q\xb6\xdb-\xa1\x1fH}K\xdf\xb7\xa4!\x10\x8e21\x17\xe6%1\xf5\x16\xe5\x1b\x86\xa4\x91,\r\x9c\xceR\xde\xa7@e\x8b4GSbH\x85\xd3m\xc7\xc5zK\x9f\n\'\x17K\xce\xd7k\xb6\x9b\rJ\x89\xb7\xb2\xd6r\xb2\xdc\xb0\xbf7gRU\xcc\xea\x8af\\\x8c\xedC`\xd3\xf7\\\xb4\x1d\xfb\xd3\x86\xc6Y\x8c\xb6\xa4\x12\x889\x92U\xa2`\xc8*\xa1\x92\xa2\x84BI\xb2\x0f\x99\xb5\xecUb,\xd5tNV\x86\xd2\x07B\x1c\xf0\xd6\xc8\x1c4\x1b\xac\xb3&lt;8;\xc3[w)V\xa0]\x852b\xac\x17\xe7K\xbe\xef\xef\xff=&gt;\xf0\xd2\x07\xf9\xc6o\xfaf\xfe\xe8\x1f\xfd\xc3\x97Z\x8a\xff\xda\x18\xd6\xeep\xceq\xb0?\xe7|\xb1\xa0\x0f\xa3\x8c\xdb\xe5\x85P4\x8dg\xdaT,fs\x8c\x93\xae\xfc\xc5j\xc3+o\xbe\xc1\xc9\xe99%%\xfa\xa1g\xb9\\\x01\x05\xad\n\xde\xc8\xca\xbd-`r\x8fA1d\xa1!\xea\x8d\xc1jCL\x89v\xd8\x90\x95f\x1b\x06.V\x1b\xce\xd7\x1b\xd6}\xcfv\xb3\xa1\x1f\x02\xa0\xe9R\xa2o\xb7\xb2Wh4\xf3f\xca\xa4rx\xad\xd0\xb3\t\xa9(\x8a\x12\xe4\x816R-n\x8c!\xa7D7lGl\x97T\x99E)rL$cI\xc8`]\x16e\x85\xec6u\x01?I\xec]\xbfA\x1b#\xe9\xe4!e\x08\xcc\xad\xc1:O\xbd\\\xcb\xb6sJ\x82\xd1r\x85\xf5vM3\x99b\xb4\xf4\xde\xee\xbe\xfd\x16\xf3\xd9\x94o\xfc\xc6\xcf\xf1\x81Q\x82\xf87\xebx\xa6\x0c\xab\x99L\xb8y\xeb6_\xff\xe5_\x92}@\xa5\x18\x86\x88\xf1\x9a\xba\xd28\xe7h\x9a\x86I\xd30\x9b4hk8^\xcc9Z\xcc\xf8\xea\x1bop\xf7\xde\x03\xfa\xb6e\xe8z\xb6\xc6\xf0\xc0\xad(\x18\x8a\xce8\xbbO\xca\x85\xd4\xf7xc\xa9\xbc\x17\xa2\xb2\xf1}r\x81M\xd7\xb3\xee;\xd6\xdb\x96\xae\xeb\xe8\xb7\xed8\x0c\xd7X\xebh\xaa\x06\xa7,~\x84M\xfb\xaabo\x7f\x0f\rl6[J\x11\xf5\tkd\xde\xd94\x13\xd0F\xda$[Yy\x9fV\x9a\xca\n\xfc\xb9\x8c\xcc7*\x03e\xd4\xa4\xceP\xa2\xe0\xd4\xe2\xd0\xd1\x0f=~2\xc5Z\xc7\xb6\xebd\xb96f&amp;\x95\xc7h\xcd\xf9j\x05)q&lt;k\x98[\xcdE\xbba\xd0\x8e\x97^x\x89\xcf|\xe6S\xfc\xae\xdf\xf5\xbb\xf9\x9e\xef\xfd^\x19\x9e\xff\xebhXJ)\xac\xb5|\xee\x9b\xbf\x95\x1f\xfd\x81\x7f\x88\xd5\x1e\xeb\x12\xaa\xef/)!U)\xa4!\xb0Z\xaf\xc8\xb9\xa3\xf2\x8e\xcaVL\x9c\xe6\x85\x1b\xc7TZ\xf3\xd6\x9d;\xb4\xdb\x96\xcdf-#\x92\x14\x99V\x9a\xb9\x12\x16\xe4\x90\x13\xb3\xc9TFB)Iy?\xf2\xac\xaf\xb6[\xd6]\xcbf\xdb\xb2\xdel\xd9\xb6[\t3!\xa0\x94\xe3\xf8\xf0\x88\x83\x83=\xae\x1d\xec\xd345\xdaUX\n)\x88\xe7\xe8\xba\x16AK\x95\x11\x8f\x1e\xe8\x86\x8e0\x046mG\x8c\x91\xa1\t\x1c.f\xb8\xe2P:\x92\x91\x19e\xa6\xc8\xb2\xab.xo\x89\xb9\x90bO\xbf\xd9\x806$d\xae:\xdd[@\x0882\xdehn,\xa6|\xd3\x87_\xe0#7\x0f\xc9E\xf3\xfa\xc99\xf7{\xc5\'\xbf\xe9\xdb\xf8\x1d\xdf\xfb\xbd|\xc7w|\'u]\xff\xa6\xdf\xcfg\xc6\xb0v\xc7\xf3/}\x88\xd9\xde!\xab\xf3SA\x02h\x19\xeb\xb4]Kg5\xd6(\xc1i\xe5@\xaa,\xb9\x8a\x0c]d\xb9\\\x91bb\xdaT\x84\xa1\xa7\x0b\x11\xdav\xac\xd6\x12i\x18\xd8\x9f\xcf\xa8\xbcc\x12e\x0b(\x87H\x9b\xb2\xa0\x0cra\x88\x91\xe5z\xc5z\xbda\xb3\xdd0t"\xdad\\\xc5s\xd7\x8f\xb9v\xe3\x06\x07\x8b\x05\xd3\xba\xc2zK\xc1\xa0\x95\x80\xf0B\xd7\xd2XE?D\xfa\x18(1\xd1\xc7 \x8a\x15C$\xc6A\x16*(L+\x8f\x9f\xd8\x11\x11\x91\xc8#\xbf\x96\xd6\x8a\x1c\x95\xd0P*H(\x11\x7fj;*\xe7X\x86\xc8\xb0Zc(\x1cV\x9a\xdf\xf9\xc9\x0f\xf1\x91\xe7\x9fc\xd1T\xb4\x9b-m\xe8y\xf1\xda\x1e\x1f&gt;\xb8\xc5\xbf\xf5G\xff0\x1f\xff\xf4g\x9f\x9aT\xca3eXJ)\xea\xa6&amp;Ph\xbbN\xe6z\xb9\x90\xe2\x80i&amp;\xa4\x9c\xd9\xac7\x9c\x8eR!\x99\x8c\xf7\xb2\x7f\x18b\xa2\x1d"]\x17G\xf4\x8c\xa2\x0b\x89\x98z\xfapJ\x8e\x99\x84fo6eV\xc9\xe6r\x01\x9c\x17\xa8p\x8a\x91\x10\x03\x9b\xcd\x96\xd5j\xcd\x10\xfa\xb1\xef\xa49::f:\xad\x88\xed9\x1b\x1d\xb1\xb1\xa1\xf8J\xe0\xcaZ\x08,\xbdV\x14\xe7\x88)c\x8b\xa1\x18K?v\xe6c\x08\xf4a\xa0d\xb0Z\x8ce\x873\xcb%`\x94A\x93d\x8b\xa8v\xac\xba\r1\x15l5e\xba\xbfO\xdb\x8d]~\r:\x07n-f\x1c=w\xc4\xf1\xe1&gt;\xfd\xbae\xd5\xb5\xac\x86\x81\xb7\xee\xde\xc7U\x8ek{\x81\xd9\xa4y\xaa\xe2N\xcf\x94a\x01\xe3\xae_b\xb3m\x999\x871\x86\x94-\xdeZN/\x96\xdc?9a\x88Y\xb6\x95\x8df6\x9d\xf3\xdc\x8d\xeb\xdc|\xfe%\xa6\x93\x8a\xd5z\xcd\xe9\xdbo\xf1\xf0\xce\x1dr\n\xb4!\xb1\xea\x06\xfa\x90\x99N\x1b&amp;\x93F\xf0\xef(\xac6\xe3,R \x11\xeb\xb6c\xb5\xde\x88\xbco\x8a8\xa5\x99\xcd\xe7\xacV+\xceN\x1e\x92C\x8f6\x8a\xc5|\xc1\xd1\xd1!{\xb3\x05M]\x01\xc2~\xd3\xf5\x03Z\xcb\xbc3\xa52z"0\xd6bSD9+\x8b\xb0\xe3^b\xce\x1a\xefjb\x0c#\x13\xe0\xc8\x14X\x94\xac\x82\xe5\xccv%j\xaem\xbb\x85\xae\xe3\xf0\xf0\x98\x8f\x7f\xf0\x16\x13S\xb1\\\xaf\x19b\xe0\xb5;o\xf3\xcb\xbf\xfau\xce\xd6\x1d\xd6j\xf6\x0e\xaf\xb3]-\xe1\xdf\xd0\x18\xc9\xb1[\x81\xdf\xdf\xdf\xe7\xe1\xdbwd\xe8k\xc6\x0b\xbcY\xf3\xe0\xf4\x9c\xf3\xad\x90\x8d\x1dL\xe7\xac\x87\x9e\xb7\xef\x9f\xb2\xec"7&gt;\xf82?\xf53?\xc7\xed\x1b\x87\x1c\xec\x1fP\x1bxp\xff&gt;\xa7\xab-1\xc1\xe9f\xcb\xc3\x8b\x15/\x7f\xf8\x83\xcc\x1a\xcfl2aVyrQ\xb4*\xd0\x97\xccz\xbb\xa5\xeb{\xe9\xac\xa7\xc8d1\xa7\x1fzB\x8cT\xd5\x84f\xb1@\x19I\xd4\x87\xd3\x0b\x1e\x9c\xad\x08\xb9p0\x9brmo\xca\xa4\x99\x92J\xa1\xef;\x86\x94\x88!\x12\x82$\xeduS\xd3\xd4\x15\xb5\xb58\xa3\xd1\xca\x8a\xcf\xcd"j @D-x\x7fk\x18b\x94\x15\xb7\\\xc8J\xd3\xb7[\xae\xcdg|\xf8\xc5\x9bTu\xc5j\xb9\xe5\xe4\xf4\x8c\xbb\xa7\'\xbc\xfa\xf6\x1d\x9a\xa6b\xdb\x07\xbaa`\xbd\xdd\x90\x86\xfe\xa9\xde\xcbg\xca\xb0vG\xe5+&amp;MM\xd5\xd4\x18\xadi7\x1</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45489</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>784982</v>
+        <v>784889</v>
       </c>
       <c r="B10" t="n">
-        <v>1980</v>
+        <v>1957</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Roger Machado</t>
-        </is>
+          <t>Ramón Díaz</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9czTXtRaw profile type xmp\x00\x00H\x89\x95VK\xb2\xa30\x0c\xdc\xeb\x14\xef\x08\xb6dK\xf88\x14\x98\xddT\xcdr\x8e\xffZ\x86\x04\x12\xbe\x13\n\x13\x83,\xb5\xda-\x01\xfd\xfb\xf3\x97~\xf0\x8b,L2X\'\xbdu:Z\xd0Q\xb3%\x8d\x1c|\xae\x83V\x13\x7f&amp;#\x9bFM:)k\x96~\xbe\xff\xb6\x9e\xd8\xa4R\xe89|\x1ep\xcdX\xa4\xd2gN)\xe9\x97\xdb\xf9\x99\xbb\xee,\xe1\x08\xd2\xc3\xd5D\xd6~\\\rV\\u\x82\xa1\xf1$Q\x8a\x1f\xf8\x17\x841\x02&lt;\x8f\xb3\x13\\\xc5\n\xdc\x02\x8du&lt;z\x00\x16rX\xa1\xbf\xc2\x05P\xd9D\x05\xf3b\x01\xcb\x0bR\xac\xc0\xb9&lt;G\xd2\xac@\x84&lt;\x1d(\xdb\xde\xd96%,\x92}Bp\x9c\xe1p\xe0J\xafd\xdc\x10c\xc6\xc2\xec4:t@F\x92\\e!\xf4\x08w\x0b\xd0["\xc0M\xbe\xf8\xd8\xec\x9d^\xd4\x01\xc8/l\x08\xa0\x07-\xaf4\xda,jU\xf34\x1a\x95`H\x15\xb4fw\xe5\xb8Rn6\xdcr\x89Xb8\x05\xa9qpc\x8c\x8aG\xd0\n\x12\n&lt;"\x16c\xc7\x06\x9e\xde\xa4"\xe01&amp;\xb7\xa1{\xe83\x7f\xce\xc3\x15\r\xb4\x8dy\xbc\xd1\xcf\xe4Aw\xfax*\x0fJ\xb1\xe9\x02\xce\x94\xf7:i\xaa\xad\xba\xb1q\xc7K\xc8\xaa\x82\xeb\x08+\xd4!\xbd\xb5\x12\xce\xb5\xf2\x11\xcc\xf9\x84\xc2\xbe-\xe9\xabL\x05\xf9\xc6kM-rYf\xe8\x19\x11y\x83\xa3\x9c\x93\x81#\xec\x05\x12\xcb\xdc\xe8\x9e\x9a\xf0\xe1\xf4!F\xf1\xed\xcf\xce\x00Fl~S\x0e\xa3\x0b\x8c\xb8\x16\x8cQ\xc4wu\xbfl\xbbj\x0eD\x97\x91\xb2\x81\xfaTZ\x10\x93\x02\xc9&amp;I\xd2y{ka\xbc\xd5@\xfd\xb8g\x84\x98\xd0\xb1F\xdc\xee\xbc\xd7@zI2\xdcd\xa4\x06\x1e$\x82\x89\x02\x9c{d\x9b0\xa1\xa7\xdb\xfc\xe1}\xc1\x94\xe1\xceO\xc5X\x10\x18A\x1c\'f\x9d\xcc\xca&gt;[zOs\xf6\xdat\xec\x1d\xbd\xf7\xac\x1e\xc1_\rW\xbb\xe3z\xa4g\xb5}\xaf2\xda%v\xa8\xdbo\x97\xfb\xf2\xa6\xe7\xf5}]\xde\xf4\xbc\xbe-\x1c\xbf\xd1\xe6\xc2\xa6\xf5\r\xbaV\xf3\xbcd)f9/\xe6\xc55\xe8\xb0L\x00\xday\xf7E/\xeeu\xf2\xee\xeb\xcd7\x15\xeb\r\xf3\xc6\xcb\xc6|\xb5\xfevLw$&gt;\xe5\x90\xee\xdf\xa1\xcf8\xa4\xd7\x97\xc8yw&lt;\xe0\xb0C\xed\x87\xcf\x86x\xfc52\xbb\xde6\x0c$\xef*\xc71\x80M\xf1w\x9f\xe1m\xd7hi\xd6tn\xfe\x7f\x92\xa4\x95\xce\xcb\xe2h_J\xa7V\xf8T\xa3\xcfo5\xe4\xfa\x0b~\x118zqe\xc8\x98\x00\x00~bIDATx\xda\xec\xfdw\xb8n\xd9U\xde\x89\xfe\xc6\x0c+|q\xef\x13+\xa8T*\x1de\t!\x92\xc9\xd9\x80\x1cp\x00l\x03\xedtm\xe36\x8e\\\xe3\xd4}o?\x97n\xd3\x0e84\x17cn;q\xdb`c\x8c\xb96\xc8`\x82\x08\xc2\xc8\x80$\x82\x10HXB*\xa5\xaa:q\xc7/\xac\xb5f\x1a\xfd\xc7\xdc%\x83\xe1\xb1\xb1\xaf\xeds\nz&lt;\xcf\xfe\xef\x84o\xaf\xf5~s\x8e\xf1\x8e1\xdeWTU\xf95\x1e\xff\xfe#\xc8)\x93r"\xc5\x08\x02\xd6Z\x9c\xf38\xe7\x00\x10\x91\xfb\xfd\x91\x1f\xf8p\xf7\xfb\x03\xdc\x8f\xf8\x85@\x1a\xf6{\xde\xfe\x8e\xb7\xf33o\xfdI\xde\xf1\xf6\x9f\xe3|\xbb\xe1\xd6\xed\xa7\x99B`\x9a&amp;\xba\xd6\x818\xfa\xf9\x82\xc7\x1e{\x1e\x9f\xfaI\x9f\xce\xc7}\xdc\xc7\xf3\xf0#\x8f|\x08`\xff\x17\xd0~i\xc8\xaf\x95\x13KU\xd1\xa2\x9c\x9c\x9e\xf0\xf3\xefz\x17?\xf2\xa3?\xc2\xbfy\xe3\x0f\xf3\x8e\x9f\xfd\x19\xce7\xa7\xcc\xdb\x0eM\tk\x1cj\n\x8ab\x9d\xc3{\x03\xc60\x9f-\xb1FH\t2\xc2\x8d\x1b/\xe2\xe3&gt;\xfe\x13\xf9\x84O\xfcDn\xdc\xb8\xc1\xe1\xe1\xa5\xff\x0bh\xbf ~U\x03\xeb\xd9_\xed\xe637y\xfd\xeb_\xcf\xf7\xbe\xfe{x\xebO\xfd\x14\xc7\xc7G\x88\x11\x9a\xc6\xe1\x11V\xb3\x9e1\x8e(\xca\xba\x9b\xd18\x0b\x08\xa9$\xa6\x92\x00\xa1\xb3\x9e\xd6Z\x86\x92\tI)\xc62\x9f\xcf\x99B`\xde\xcfx\xc5\xab^\xcd\xa7\x7f\xc6g\xf2i\x9f\xfe\x19\\\xbe|\xb9&gt;\xdc_\xc3\x00\xfbU\t\xacR\n\xb7o\xdd\xe2\x07\xbe\xff\x07\xf8\xe6o\xf9\'\xbc\xe5\xcdof\xb7\xddb\xad\xad/\xdb\x18\x9cs\x18\x03N\x84E\xd7\xd0\xf5\x1d)FZ\xe7Xx\x87m:\x90B\x88\x11\x01\x9c\xd4\x9fM\x9c\xb0\xcd\x8c\x92\x85)L\\\xb9v\x9d\xf3\xf3\x1dS\x98\x18\xa7\x89G\x1e{\x94O\xfd\xb4O\xe5\xb5\x9f\xf3\x9by\xf1K^\xca\xe1\xe1\xe1\xafI\x80\xfd\xaa\x02\x96\xaa\xf2\x96\xb7\xbc\x85o\xfc\x86o\xe0\xf5\xdf\xffz\x9ey\xfaiP\xc5\x19\x835\xe0\x8d\xa3\x18\xf0]G\xd1L\xce\x99\xbe\xe9\xe8\x9ca\xd68\xe6}\xcf\xbci\x89qb\x8a\x99\xa6w\xcc\xba9\xbb\xdd\x96R"\xeb\xc5\x9c\x10"S\x08\x80\'\x0b\xc4\xa2d5\xecw#9%\x06\x0f\x8b\xd9\x1c\x8d\x89\x87\xaf=\xc4g}\xf6g\xf3\xbb\xbe\xf0\x8by\xfe\x0b\x9e\xa8\x0f\xfc\xd7\x08\xc8~U\x00+\xe7\xcc\xbb\x7f\xfe\xe7\xf9\xdb_\xfb5\xfc\xb3o\xfdg\x0c\xe3H\xce\x05c\x0c\x8dst\xc6\x90\xb5\xe0\x9c#\x94\x88XK\xe3&lt;\xceZ\xbc\xf3t\xd6\xe1L\xc2\x1a\xa1\x11\x8bs\x8e\\2b\x0b)&amp;\xa4m\t1r0\xeb\xe9\x9b\x86\x1c\'\xf6\xdb\x01\xdb\xf5\xecc&amp;\x84\x82`\x18Sb\xa00\r#\xa8`\x8d\xe1\xd2j\xc5b\xde\xf1Y\x9f\xf3\x9b\xf8\xc2\xdf\xfd{y\xe2\xc6\r\xac\xb5\xf7\xfb\x91\xfdW\x8f\xe74\xb0T\x95\xcd\xf99\x7f\xf3o\xfcu\xbe\xe1\x1b\xfe\x0f\xa6q\xcf4E\xb2*b\x1d\x02\x080s\x9ez\x03\xd6\x97-N\xb0\x9aY-z\xd4:\x0c\x8eUc)%\x90\x92\x82u\xe4\x141N1\x08\x88P\x8c\xe0EX\xf8\x96F2\xfba\x8f\xf8\x16u\r\x9b\xf3=\xc5xb\x86\xcd\xc9\tc\x8c\x8cY\x11g\x11U\x0e\x16\x0bB\x9aX-\x0f\xf8\xac\xdf\xf8\xb9\xfc\x89/\xfb\xb2_TU\xfej\x8c\xe7,\xb0J)\xbc\xe3\xed\xef\xe0\xcb\xff\xf4\x9f\xe4\xc7\x7f\xfcMX\xb18\xebq\xde1\x85\x88k\x1aRJ\xf5\xa4*\x8a\x17\xf0\xd6\xd24\x9ev\xe6q1\xd1\xb7\r]\xd3\xa0\xbe\xc1\x8b\xb0\xee;\xee\x1e\x1da\xfb\x9e\xf5z\xc5\xe6\xec\x84R\x12M\xe7I9\xe2\xbdg\xde\xcc)a`;\xeeX\xccW\xc48aC\xe6L!\xe6\xc2f\xb3e\xbb\x99\xd8\xee3\x93\x08\xa6\x81\x99kq\xaeV\x97\xae\xed\x98/\x16\xfc\xbe\xdf\xf7\x07\xf8\xc2/\xfe\xef\xb8v\xed\xda\xafJ\x80=\'\x81\xa5\xaa\xbc\xeeu\xaf\xe3O\x7f\xf9\x97\xb19?\xc6\n\xe4\x0c\xc6\xd6j\xae\x14\xa51\x0e\xdf\x19\xc6\x18\xb1\x08&amp;$\x16mK?o\xc9\x9aY\xb6-F\x04)\x8auB\xd3x\x96\xdd\x9ca\x18\xd9\x87\x89\xd5\xb2\xc3#\xe4\x02j\x128OJ\x05+\x86\xd6\x1a"JI\x05\xab\x13\xf3\xd6\x93\x8d\x10Bf\x9a&amp;v\xdb\x81m\x14\x9e9\xde1i\xa6\x14e\xd6wH\xc9\xa8q\xac\x0f\x17\x0c\xc3\xc8\xa5\xcb\x0f\xf3\xe5\x7f\xf6\xcf\xf3y\x9f\xff\x05\xff\xae\xb0\xf8U\x12\xcf9`\x95R\xf8G\xdf\xf8\x8d\xfc\xb9?\xf7g\xe9\xe7\rW/\xaf\xd8\x1c\x9f\xb1\x1d\x03!eJ.\x88*\xad5\x88\x14\x96\xeb\x05\xc6\xb74\xa5\xd0\xa0\x18#\xf4\xfd\x9c\xd3\x93c\xe6\xb3\x9e\xb6m!G\xbc\x81+\xcb\x15\xe7\xfb\x81}\x8c\xe4\x9cx\xe8\xfa5\xa6q\x8b\xb5B1\x1e\x87%\x85\t\xeb\x0c1)\xd6:\xceN\x8f\xb9ri\xc5~\xb7\xa5\xe9\xe7\x90\x0bZ\n\xb9x\xdew\xeb\x88m\x8e\xe4\x9cI%_\xe4V\x96\xf5z\x85\xb1\x8e\xdbw\x8f\t\x9a\xf9\xad\xbf\xf5\xf3\xf9s\x7f\xee\xcf\xf3\xc2\x1b7~\xd5\x80\xeb9\x05,U\xe5\x1b\xbf\xf1\x1b\xf93\x7f\xe6O\x93R\xc2y\xb0R\xb0\xc5RT\x18s\xc2hb\xee\x1d\xadU\x9c4\xccVs\xe6\xab\x05\x9e\x82M\x89\x82\x12\xc6D\xa1\xd4k\xae\xe9)\xce"Fx\xd1\xf3\x1e\xe6|8\xe3\xe4d\x83N\x85+\x87\x07,W=E\x0b~1\xe7\xe6S\xef\xa7\xc3blC\xe7[\xc6} \x929\xdd\x9d\xd2\xf5\rE\r\xae\xeb\xd9\x9f\x9d\xb1\xb43B(l\xa6\x81"\x85Qa\xbfO\x18\xeb1\x14\xda\xb6#(\xdc\xdbl\xd8\xee\x07\x1e~\xf8\x11\xfe\xca_\xfa\xab\xfc\xb6\xcf\xfb\xbc\xfb\xfd\x98\xff\x8b\xc4s\x06X\xaa\xca\xbf\xfa\xce\xef\xe4\xf7\xff\x81\xdfG\x1a\'\x9a\xb6\xad&lt;\x94\x05\xab\x82\x88\xc1\xb6\x0eM\x03sg\xe8\x05\xd6\xb35\x93\x17r\x11\xe6\xcea5\xa1\xc60\x9f/\x89\xdbsR\xce`\x1cE\x84)eT\x94+W\x0f@,\x9dZ\xc6a\xcf\xf3o&lt;\xc6z9\xe3\xe9\x0f~\x90+\x97\xd6\xdc\xbdu\x8f\x103\x07\x07\x07\xdc\xbay\x13?\xeb\xb8sr\x8c\x18\xe5j\xb3`\x8f\x10DaH8k\xd1\x92\x18C`T\xc1\x98\x86\xf9b\xc9\x07&gt;\xf8\x14c\x88\\\xba|\x95{\xfb\x1d\xc7g\xe7x\xe7y\xe1\xf3\x1f\xe7K\xff\xd8\x9f\xe2\x8b~\xf7\xef\xfeP_\xf2\xb9\x1a\xcf\t`\xa9*?\xfc\xaf\x7f\x98/\xfe\xef\xbe\x90\xf3\xb33z\xef\xf0]C)\x05A\xe9\x9cc\xd6\xb5\xe4\x9cX\xb4\x9e\x855\x98\x92\x98\xcf=\x81L\x10GSZ\x1aM\x98\xae\xc57\x1e\xb1J\t\x05\xab\x9e!M\x98F(Z\x987=\x8d\x11RT.]\xbfF1\x85\'\x1e\xb9\xc6\xee\xe4\x94\x93\xe3#\x92\x11J\x12\xacU\xc6qd\x9cF\xb4(\x9b\xed\xc0\xd5\xcb\x97\x11U\xb6a\x83\x95\x9a\x93\xe5\x1c/\xa8\x0bKTe?LLCa\x98\x02%\x16t9\xe3\xce\xbd3\xa6)\xd1\xb5\x1d\x8b\xf5\x9a\xdf\xf3{\x7f?\x7f\xf4O\xfcI\x0e\x0e\x0f\xef\xf7\xa3\xff\xcf\x8e\x07\x1eX\xaa\xca\xbb\xde\xf9.~\xd3o\xfe\r\xdc\xb9{\x07o\x1d\x16E\xa5\xd0x\x8f\xb7\x96\xbe1&lt;r\xf5*)\x05$eL\xc9d\xcd\x17\'\x9a\xd2\xfa\x86P,W\xe6\x0b\xc6\x1c\x91\x92h\xe63|;ci:\xce\xa7s\x8eO\xef\xb2\\\xaf\xe9}\x8b$\x85\x02\xd7\x1f{&gt;\xf3\xe5\x8c;\xcf|\x10\x03\xe4\x12q\xce!%#\xce\xd1\xf7=g\xf7N0\xc6q|\xba\xe5|\x7f\xce\x95K+\xdaV\xd8\xed2\xf3y\xcf\xb8\xdf\x13c\xa2\xb1\x96H\xe4\xeclG\x8c\x86\xa2\xb0\xdbG\xcerd\x18\x0bqJ\x84\x94if3\xfa\xae\xe3\x89\x97\xbc\x84\xbf\xf6\xd5_\xcd+^\xf1\xca\xe7d\xde\xf5@\x03KUy\xf2\xc9\'\xf9\x1d\x9f\xff\x05\xbc\xeb=\xef\xa4i=\xde\x18$\'T\x04/\xb0\xeaZ\x0ef\x1d\xcb\xf9\x82~\xe6\tiD\x93 \xadgL\x03-\x86^\x85\xe0\x85\x10\n\xadq,\xfa\x8en&gt;\xa3d\xa55\x96\xa0\x13Ea\x1c\xf6\x1c\x1e,Yv+\x9co8&gt;?c\xd6\xcfh\x1b\xc3\xed\xdb\xb7\xe8\xbb\x86\x87\xd6+T\n\x88\xc7\x00\xa9D6\xa7[\xbc\xb1\x9c\xe5\x89i\xb7\xa3\x9fu\x84)a\x0c\\\xbbr\x95\xe3\xdbwh\xbcc\xbd^pt\xf7\x88\xbbg;&amp;)\x8cQ9\x19&amp;l*h\x82M\x84A\x1c\xab\xf9\x8al3\x87\xd7\x1e\xe1\xff\xf9?\xfeO\xfc\xfa\xcf\xfel\x8c1\xf7\xfbu\xfc\'\xc5\x03\x0b,U\xe5\xee\xdd\xbb|\xfe\x17|&gt;o}\xebO\xb1X\xcc\xe9\xbcArF\xc40\xc5\x89E\xe3\xb8\xb2\x9aC\xce\xb4\xde\xd36\xc2r\xb9 \xa9%\xeeG\x9cS\xd4z\xda\xa6!\x95\x84\xb1-%F(\x99\xacJs\xc1\xba7\x8dC\xacc\xd8\x9dR$1kfx\xdb1_\xcd\x18\xf6\x81\x1cG\xb2f\x1a\x03\xab\xc6\xd2\xcef\\9\xbc\xc2\x18\xb7XQN\x8f\xf6\x84\x10\x91U\xcb~\xb7A\x8b\xc1\x8bp||\xc2\xe5K\x07\xf4\xce0\xee\xf7\\\xbe|\x89a\xbf\xe3\xde\xf9\x8e\x89D\x0e\x85g\x8e\xcf\x08)#\xc9po*\x9cgXv+B\xaey\xd9\xa2\xed\xf8_\xfe\xd2_\xe6\xb7}\xde\x17&lt;\xa7N.\xfb\x15_\xf1\x15_q\xbf?\xc4\xbf\x1f\xaa\xca\xcd\x9b7\xf9\xa2/\xfaB\xde\xf2\x96\xb70\xeb;\x0c\x05I\x99\x18GZ\x07\x9d\x08\xad\x13\x9c\x81\xbek\xe9{\x0fF\xc9Y88&lt;\xa0[\xcc`\xca\xa8*c\x08h\xcc\x94i\xc4;\xc16\x8ev\xde\xa1\xb90\x9eo\x80\x82\xb1\xca\xc1z\x01I)\xb1\x10r\xa2\x94@)\x06\xcd\x89i\xd8#9\xd1w\xb6\x02s\x1a\xe9[G\xdf\x815\x8e!\x07\xac\x15D\xa0\xa4\x8cs\x86\xf5jNJ\x81\xab\x97/\xd1x\xcbr\xe6i\x9da1k\xf1F\xb1%U\xee\xcd\x08\xdeX\x0e\x9a\x8eb\r"J\x96B\xc8\x19%\xf2\xc3o|\x03\x8f&gt;\xfa|^\xfa\xd2\x97=g\xc0\xf5@\x9eX\xc30\xf0E_\xf8\xbbx\xfd\xf7\xbd\x9e\xa6i\xe8\x1a\xc7\xac5X\x11T3W\x96sV}O\xdb\xb5\xc4\x14\xf0\x08\x8bE\x8710\xed\x12c\x98x\xf8\xb1G\xe9}\xcb\xcd\xa3\xbb\xe4\x941\xb9\xbeH\xeb\x04\xd3yZ,\xad\xefI\x14v\xdb\r\x82\xd2z\x87w\x1d \xec\x86\x1dHf\xd9\xafY\xcd;\xce\xb7\xc7\x940p\xd87,\xe73\x9co\xf1b\xf0\x9d\xd0\xcffl\xf6\x81\xb2\x0f\x0c\x9d\xc1\x84\xcc\x98\x02\xed\xbc\x83\x94\x99w\xb5 X\xfa\x86R\x94\x93\xfd\x06c\r\xc7\xa7\x1bNN\xb7lc$;G\x8a\x86\xa7n\x9d\xf0\xd4\xf1\x16|\xc7^\x0c\x8b\xd5\x82R\x12m\xd3\xf2\xff\xfd\x07\xff\x88\x8f\xfa\xe8\x8fyN\x80\xeb\x81\x03V)\x85\xbf\xf8\x17\xff\x17\xbe\xea\xab\xfe*\xc6\x18\x9c\xb1\xf4\xce\xb2\\\xceY\xcc[V\x97*\'\xb5\xeeZ\xac@\'Z\xe7\xa7\xaca\xdd\xcf\xd8oG\xf6\xe3HN\x13\x8d1t\xfd\x8c`-\xe3TH1\xe2\xad\xc1\t\x18\x02)\x15\x9a\xf9\x8c\x92\x12\xd3n\x83\xf3-\xd69\x8a\x80/\x8a\x8d\x91\x94G\xbaE\xcb\xa5\xc5\x828\x0e4Fh\x1a\x8b\xf1-\xb3n\x81\xd1L\xd7z\xc4Z\x86\x98(\xde0\x17!h\xa6\x88\xe0\xac\xc3\xa8\xc5ha\xd1\xb5\x18\x1cS\xde3\x86\xc8\xd9\xf9\x8e\xdd.\xb0\x8b\x03\xbb\xa2\x8cS\xe1t\x13x\xf2\xf69\xbb}`k\x94]R|\xd32\xefz\x1e\x7f\xec\x05\xfc\x8b\x7f\xf1:\x0e\x0e\x0f\xee\xf7k\xfa\x8f\xc6\x03\x05,U\xe5\xa7\xdf\xfa\xd3|\xc6g~\x1a!\x04\x00\x1a\xebX\xcf\xe6\x94\x9c\x10\xabd\x12\x87s\xc7\x95e\xcf\xa3\xeb\x15\x0f]\xb9\x84\xf7\x16\xe3\x1c\xc3v\x8bM\xb0\x9b"JAS\x06\x84\xee\xd2\x01\x8aE\x14\xa60b\x05\xc2pF\xc9\x85\x98\x15S,\x9d\xb7\x98\xa6A\x80\xae\xef\xb1\x9aXXh\\A\xacA\xac#\x87\x80\xa6\xc8l\xd1\xa1\xc6a\xf0,;\xf0M\x83\xb8\x06J!\xe5\x84\xf7\x86\xa6\xeb\x19\xc7L\xcc\x11Qp\xd62\xeb\x1a\xc2\x18\xc9)Qrb\xd4\xc4v\x189\x1d\x13\xf7\xee\x9d\xa1\xc6\xb2Wx\xea\xee\x96{\xf76lE\xb0\xdd\x92\xdbG\'\x18\x11\x8c\x16\xbe\xf2+\xff2\x7f\xf8\x8f|\xe9\x03\x7fj=P,\\)\x85\xff\xfd\x7f\xff:\xe2\x14@\xc09\xcbz9\xa7\xc4\xc0b5G\x14r\x1cY8\x83\x95B\xde\xec\x18J$\xcf[\xfa\xc5\x9c\x83y\x87\x0c\x91\xc6\t)&amp;\x9cw\x045\xc4\x98\xd04\xe1\xad\xd2\xb6-N!\x9b\x05\xc5\n\xdb\xed\x16\x9b\x04RB\x92b\x9dE\x87=1\x07\xd2\xcc\xd1\x88\xa3\xa0\x08B\xe3&lt;mo/N\xc8\x86\xd9|A\xe7\x94\x183\xd6\x1a&lt;\x8a\x1aO0\xa0\xa9\xd0X\x87\xa5\x80\x16R)\x8cc-\x02\n\x05\xeb\x0c6\x16\xfa\xd61%\xa5\xb1\x86d-}\xd3rP`\x1f\x13\xd3y`\x7fv\x8e\x03R.`\xe1k\xfe\xd6W\xf3\x1b\x7f\xf3\xe7\xf2\xd8c\x8f\xdd\xef\xd7\xf5\x1f\x8c\x07\x06X\xaa\xca{\xdf\xfb^\xbe\xeb\xf5\xdf\x8dJ\xed\xc39\x11\xe6\xb3\x06\xe3[\xa4(]\x86e7g\xd5\x0b\xebYKo\x0b3\xebh[\x8f\xa3^]F\x0c]\x9b\xf1\xf3\x16_\x1c\xa6u\xc4\xa8$u$\x99\x18v#]\xebQc\xf0\xd6\xb0^/\xb0*\xb4\xce3\xc6\x891\xa5\xfa\xa2\xe7=3+\xcc\xbcg\xdew\x18\x01\x05T\'\xbc3\x98\x06z\xaf\xe4)\xd1\x1aC\xc9\x19u`\xc5\xe0\x8a!%E\xc88\x91:\xca|q1\x88\x14\x8c\xd8\x8b\xd1\x1e\x0f%\xd3R\xe8\xe7s\xb2\x15P\x8743\x06\xbf\xe3\x84\x89L%\x81E\x84\xa2p\xf3\xf6\x1d\xbe\xee\xeb\xfe\x16\xff\xeb\xff\xfaW\x1eh\n\xe2\x81\xfad\xdf\xf5\xdd\xdf\xc5\xbd\x93\x13\x8a\x80\xb3\xc2\x8b_\xf0\x04\x8b\xf9\x9c\xce58c03\x87Y\x18\xe6\xad\xc5\x02\x9dm\xe8f\r\xb3\xc6\xd17\x8e\xd6)\xad\xc9,\x9b\x16\xe7\x1d\xd2\t\xdeY\xe6\xbdc\xb5\xa8W\xd1z\xd1\xd04\x85\xc3\x99\xa35\x99\x86Do\x95\xbe\x11\x16\xbe\xa1\x15K\xa3\x916L\xac\xfb\x96\xf9\xd2\xd37\xd0K\xa1\x95\x82\xf7\x16\xe7,F\n%\x0c\x98\x9c0\x14 \x93\xc9\x14#\x88(\xde\x19\xacu\x14-\xa8\x14, \n \x94\x04\xa5@L\x82\xb3\x1d$\x83s\r\xde4dU\x8a\x14\xfa\xbe\xe1\xea\xb5\xcb8\'\xd8\xfa\x17\x99\xf7s\x16\xb39\xaf\xfb\xf6o\xe7\xee\x9d\xbb&lt;@Y\xcc/\x89\x07\nX\xdf\xf6\xba\x7fA\x18\x07\x8c@\xd7Z\xee\xdd\xbd\xc5\xb0\xddc\x0b\x18\xcd\xac\x1b\xc7\xc3\x8b\x05\xad\x823\xb0\xe8;.-\x16\xf8\xc6\xd1x\xa1u\x86n\xd6\xd0:\xc3\xba\xf3\x1c\xceg\xacf=\xb3\xd6\xb3n\x1d\xd7\x963\xae\xae\x16,\xe6=\x9d\xf3\xf4MC\xdb\xb6\xccf-\xb3y\xcb|\xd5s\xe5\xa0\xe1\x91\xcbk\xae_Z\xe1-x\x01A0\x8d\xa7k\x1c\x9d8\x9c\xf5X\xf5\x90\x15\x8c\x12s\xa1\xf5\x06\xdf\xb4\x18kP"\xb9L\x18\x07\x89\x823\x06P\xc4Z\xb4\x18\xd4*Q3\xd6\xd6c\xb0\xb4\x86\x94\x12\x9a\xeaX\xb3h\xa6\x91\xcc\xccD\xae-g\xf4\xade\xd6\x19 b\xbd\xe1\xe8\xe8\x88\xaf\xff\xfa\x7f\xf0@\xe7Y\x0fL\xf2~\xef\xee]^\xf6\xf2\x17\xb3\xd9\xec\x98\xcfg\x1c\xac:L\x8ctM\xcfj\xde1\x9f5\\\x99;\xae\xb4-e\x18\xc9&amp;qi\xd9\xf1\xf0\xe1\n\xd3\x08\xae\x00\xa5`2LN\x985-m\xd3\xa2\xaaXo\x101HQ\xc8J$\x93\xc7\x08)a\x00\x91\x8c8E\xa4\xc0 \x8c\xb1\xd0/f\xa8UT\x0b\xde\xb5`\x0cF\x14b\xc2\xb5\x1e\xad;\x19\x18\x110-\xc6\x8c\x041\x94T\xea\xb7\xd58T\x0cS\x8e\xb5An;\xc6\x18\x88\xfb\x80\x16%\x97\xc2\xacm\xc1X\xee\x9c\x9dr\xfb|\xc7\xee|BS\xc17\x0e5\xc2\xbd1s\xe7d\xc7\xf14q\xb4\xdd\x93\xd5a\\C\x0c\x01U\xe1\x8do\xfc\x11n\xdc\xb8q\xbf_\xdd/\x1b\x0f\xc4\x89\xa5\xaa\xfc\xdc\xcf\xfd\x1cgg\x1b\xac1\xa0\x858\x0c\xb4MC\xeb\r\xc6$\x8c$Z\xeb\x98\xcff\x14\xef\x10\xb1\x08\x86\x903\xa4B.\x19\xd3\xd49v\xf9\xd0o\x95QM\xe4THQ\xc9!\xa1d\xac\x11f\x9dc\xd9\xb7\xb4\xb3\x06\xdb8\xacX0\x1e\x9a\x06\xef\x1d9\'\x8c\x18\xfa\xd9\x02\xdb54]G;_\xd0-WX\xd7\xd1,zf\xb39\xd67\x88wd\xdb\xa01#\x05\xc4\x98:\xb8\xd78\xe6\xbe\xa5iZ\x9coh|W{\x8d\nZ )Li\xc4[C)\x19q\x06\xacPD\xd8O\x11-\nd\xc28a\x15R\x98\xd0\x94\xc9\xa9\x16\x02\x7f\xff\xef\xfe]J)\xf7\xfb\xf5\xfd\xb2\xf1@\x00\x0b\xe0_\xbf\xf1_\xa3Rg\xd25g\x9c\xa9K\r\xc6\xd6\x97\xbb\\-\x11k89?\'\xc6\x11\xef\x0cS\x9e(\xa9\xd4\x93H\x84)g\xac\xb1X5D\x93\x89\x92\xc1\x08\xaau\xf6\x1d\x01\xb4\xe0\x0c\xe4\x1c0\xce\xe0\xdb\x0e\xc4C3\xc35K\x9a\x83\x15\xed\x955\x87\x0f?\xca\xe5\x87\x9f\xa0[\x1f0_\xaf\xe9g3\\\xdbB\xdb\xe2gs\xb0\x1e\xbc\x83\xc6\xa1^\xb0n\x06\xa6\xc1\x18\x8b\x88\xc373p\x1df\xb6\xa0]\xaci\xdb\x1e\xe7[\xba\xf9\x9c\xc5\xa55v\xd9\x93\xad\xc1\xfa\x16\r\x19\xdd\x06b\x08L%b\x9cA.z\xa2\x87\xebU]\xa2\xa5`l\xa1h"\xa5\x80\x96\xc2\xb7\x7f\xdb\xbf\xe0\xf4\xf4\xf4~\xbf\xba_6\x1e\x88\xaa\xb0\x94\xc2O\xbf\xedg\xea\x88\xb1f\xbc\xf1\x95X\x14\xc17\x1dm\xd3A.` j`1k\x102XH\x9a\x11\xdf\xe2\xacC\xbdc7\x8c\x14/,fs\x1ak\x10UJ\xcc@A\xad\xa7\x901\x02\xbe\x99\x93r\xac=F\xeb\x98\xaf\x97\xa8\x1a\x12\x90K\xc6\xcd\x16XY\x90\x83!\x85\x1d\xce\xba\x8b\x05\x8dD\xb9\xa8\xec"\x06q\x960\xee\x11Q\x9a\xf9\x9cq\x1ap\xaeA\x9b\x86\xd5\xe2\x00\xa1%\xa5\x115\x82k&amp;|\xce\x84aO\x0bh.\x80\xd0\xf6=\xa6\x15R\xa8\xff\xeen\x1a\x89Y\x90\xc6szt\x8e\xb7Jc!c\x88\x12\x899\x12\xa6\xc4\xfb&gt;\xf0~\xde\xfc\xa67\xf19\xaf}\xed\x03\x97o=\x10\'\xd6v\xb3\xe1\xedo{\x1b \x18\xa9\xd5\xd4j5\xc7[\xc1[\xa5\xec6\xb8T\x101\xa8\n*P\x04\xa2B\xf4\x16q\x1e1\x86\xd6\xb5\xf8\xae\xa7\x9bu\xf8\x8b\xf6\x8c)\x96\xa6\xe9\xe8.\xae-\xe3&lt;\xce\xcfI\xc6\xa0\xd6U\xda\xc19\x88\x99q\x9c\xd8\xef\x06R\xc8\x8c\x9b-\xdb\xedM\xa6aC\x1c\x03\xa9\x80\x88\xa3\x99-\xd0\xd9\x02Y,\xe9V\x87\x88\xef\xf1\xcd\x9cv\xb1\xc4\xcd\xe6\xf4\xab5\xae\xef\xc1y\xd48\xb6\xe3\x96\x10"%\xc3\xac\x9f#\xc6\xd1\xce\x164mO\xd3\xcf)\x06\xec\xac\xa7[,\x80\x82\xaa\x92\xc4\x92\x04\x92\x16\xc4;\x8cXz\xd3\xa2\xa9\xd0\xb7\r\xd7\xaf_E\x15b\xca|\xfb\xeb\xbe\xed~\xbf\xbe_6\xee;\xb0T\x95[\xb7oq\xf3\xd6\xd3Xcp\x18\x1a\x81\xddn\x03yB\x86=\xb6\x14\x8c\x81\xac\x8a1\x16k=c\xca8\x1c\xd6x\xac\xf58\xe31\x05\xda\xb6\xc5\xaa\xc5\xd4\xdb\x11u\x1e\xe9\xe6\xe0;\xac\xf3\x18cQU\x9ck\xb1MGVHb)\xb6\xa1\x88@\x81&lt;\x05\x8c*\x9a\x05c:\xba\xd9\x02\xdf/I\x089\x15\xbc\xb6 \rCN\x14c\xc0T\x85\x9aR\xea\xdf\xd1\x0cE\x0ba\x18\xd0\x94\xd9n\xce\xd9oN\t\xdb]e\xff#@\x03\xc6\xd3\xce\x16\x98\xa6\xa1\xebg,g\x87\xa4\x981b\xd0"h\x11\xc4\x18\\\xd3\xe0\xda\x0e\xa3\x8e\xfd\xf9\xc4\xdd\x9bwj\xfe\xa5\xc2\xb7\xbf\xee\xdb\xd9l6\xf7\xfb5\xfe\x92x \xae\xc2w\xbc\xe3\x1d\x0c\xc3\x1e\xc1\x82\x15\xb0\x96\x94\x951\x17\x16\xcb\x16\xd3\xf5\xecB\xa05\xca\xa1s\xecc\xa2\xe9z\x10G)\x10\x8a\xd2v\r]\xd3\x92K\x81\xa0\x84\x90Q\x19(\x18\\t\xd06\xb8Vp\xda\x12\x87\x80J\x95&amp;\x8a\xc0|uH.J\xe3\x0c}o\x89\xd3X{\x86Y\xb1]Gq`\xbb\x8e.+\xfb\xdd\xa6R\x10\x05JJu\x11\xc3{\xca\xa4\x04\rHJ\x84\x18\xf0\xce :\xa0\xbe\xa1i\x0cE\x13\xc7GG\xc4\x90A\x0c\xceY\xba\xf5\x82\xed\xb0c\xd8\xefHc N\x19\xd7\xf4X\xe3X]Zs\xeb\xe4\x041\x85\xae\xedp\x1ef\xbb\tI0HA\xa4PJ\xe6\xce\xdd{\xfc\xec\xcf\xfe,\x9f\xf0\t\x9fp\xbf_\xe3/\x8a\x07\x02X?\xf9\x13?\x89f\x83q\x82X\x8bqu4\xa5_\x1f\xb2\xcf\x89\xb5qX\xef*Ai,4\rN\x14\x93\n\xa2\x86\xae\xf7x\xef\x88iD\x0b\x98\xa2\xa8\xf7\x90\x1b\x9c\x17\x9c\xb1L)\xd18\x0fZ\xc893\xa5H\xf6\r\xcd\xbcGr\xa61\x86"\x9eR\x14\xd7u\x88x`\xc2yG\x8c\x81\xb4\xdb\x12\xb4\xd2\x0fa&lt;C\xf3D\x0c\x03\x18!\xa9EE\x98J\xc0\xc4L.JI\x06\xab\x891F\xbcm\xe8\xe7=\x8d\x9b\x11\xa6\xc8\xf1\xc91\xb9(2\x80N\x11[\xbb&gt;\xb5p\x11\x8b\x88\xe1\xf8\xec\x98\xa4\x99\xc5l\xce\xfb\x9e\xb9\x87\x8a\xe3\xd2\xc1\x8a\xa7\xee\x9e!Ry1((\x86\xb7\xfd\xcc\xdb\xf8\xf8\x8f\xff\xf8\x07*\xcfz \x80\xf5\xd6\x9f~+E\x0b\x16C\xc9\x89a\x97q\x8d\xe7\xf8\xf4\x88+\x8b%\x16@\x85y\xd3\x93%\xd1\x02a\xb7\xa7\x9fu\xf4\x9d\xc5\x9aRII\xcdX\xdb\x80\xb8\xda\xe8\xb5\x81\xb6\x9b\xd5\xde\xa3\x11b\x0eL9\x80\xa9\x04\xac\xa8\xa2\xe3\xc8\x143\xde{b\xce\x98\xb6C\xc5\x00\x85{w\xef\xb0&gt;Xa\xbd#\xe5\tE)!\xd17-Z2\xde82\x82\xf1\x8e\x10Fr\x084\xd2\xe1\xbde\x1f6\x8c\xb10$C#\x8eT"\x14h\xdb\x05\xf3\xf9\xec\xa2_h\x99N\'\xc2nK\xeb\x0c\xab\xd5\x8ai\xdc\xb19\xdb`\x10t\x1f\xe9V\x1d^\x84g\xee\xdde\xbd\xb8D)\xe5C\x14\x83H%X\x9f|\xef\x93\xf7\xfb\x15\xfe\x92\xb8\xef\xc0J)\xf1\xf3\xef\xfc\xb7\xc8E\xd3\x19\x94R\n\xfb8p\xbd\xb9\xc4\xda4X\x1c\xce\tc\xd8\xb2:XC\xc8\xcc\xe63\x9a\xde\x03\x99q\x8cH\'X\xdbS\xb2\x81\x94p\x02\x83F\xca8\xe0s"\xa6\x00!\x80\xb7\x15X\xb6\xc1\x88E\xc4\x13\xe3@\xc9\x13E\x95\\vd\x14\xc13_\xcc\xd0\x9c(q\xc2\x19K\xb1\x8am,\xaeuX\xd3\x12\xa6@\xe7:\xb2(\xdd\x05\x95\x91c\xa1\x11\x87\xa6\x8c\x8a\xd0xG/\r\x93*%eb\xdab|\xdd\xca\xce)c\x9d2\xa5\x89\xa8\x06k\x1c\x07]O\n\x81q\x8c\x18\xd7pr|\x8a\xb1\x19-\x99\xbbg\xa7d\xe30\xb6\xca\x05\x94\x0b}\x88\xa3\xbbw\xef\xf7k\xfc%q\xdf\x81\xb5\xddn9:=\xc6\x18!\xa5\x8c\xa1\xf6\xda\xf0\x8e\xb6\xe9\xd9\xa4\x91&lt;Y\xdc.qy\xe5\xb0F\xc1\t!\'\xdc\xa4d/h\x93+U\x11F\xb4\x18\x0c\xca.L8W\x8b\x81i\x9a\xf0\xceb}\x0b\xde\xd6\xeb\x96\x8cI\x8aq\x0e\x95L\xb1\x16\xa3B\xdb\xb5\x14#X\xd7\x92.Xt\x11%g\xd04`S$\xb9L)\xa96\x92\xb3\xa29\x13B$\'\xa5\xe4H!\xa3j\xf1b\xf1\xf3\x05\x8d\xf5Xc\xd8\x84-8e\x8c#\x89\x86\x12#\xbb\xed\x96iL\xa8\xf1\xb8\x0e\xf24\x91B\xe6\xd2\xc1\x15n\x9e&gt;\xc3~\x0c\x84\x900\xe2\xaa0\xc9\xd5\xcb\x9c\x9e\x9e\xa3:b\xa8\x1d\x85\xa3\xa3#r\xce\x0f\xd4\xca\xd8}\xad\nU\x95i\x1cI)P;2\x85\xac\x85\x9c\x15h8&gt;:g\x9a2\xd3v\x87J\xc6w-\xd6*\x85\tuJ\xb6\x11rB2\x84)3\x95@6\x91\xe2\x14\xd7z\xba\xb6\xa7u\x8en\xee\xe9\xbb\x16\xb1\x86\x9c\n\x14&gt;\xb4:\x86T\xf5&gt;\xcd\x99\x14\x13\x14AT\x08c\xa8\x95^\xcchQ\xc4*\xaeq\x88w\x84\x980\xb6\xc3\xfb\x16LD\xcb\x84\xa9E\x1aX\x0b)a1\xb8l\xa0\x14B\xc9l\xb7\xe74\xde"\x9aY\xfa\x86&amp;\x86*&lt;bl\xa5J:\xc7b\xe198hh\\F\xf3D\xd39\xa6\x1c\xc9\n\xb3\xa6#k\xe6\x99\xa7\x9fa\x18\xeb\xe9\xaaT\xf2\xf7\xe8\xe8\x88\x18\xe3\xfd\xc6\xd2/\x8a\xfb\nq\x11a\x9c&amp;\xc2\x14\xa1\x94\x8b\xdc\x06\x8a1\xc4\x18p\xf39\xe2&lt;!N,{K\xda\xef\xe9./\xc9\xe3\xc0\xccZ\xe6]\x07\xc6\xb2\x1f\'B\xca,\x16}M\xb6s&amp;N\x89N-\xe2\xa8/7W\xa1Zc\x04-\x89\xc6;\xe2\x14Hf\xc2[\x83\xc1a\xdb\x16\xeb\xea\xec\xbcH&amp;\x86\x88k&lt;\xce\nY\x04\xc53\r\t\xef\x1bD\x1c1\xec\xea\xe4A)h\x8a\xec\xa7\x01QA\xc6\x81\x10&amp;\xbc4\xa4iKI\x85\xdc6\xa4\xc6\xd7~d\xe3)(\xe4\x82\x15\xc1{C\xdf5\xac\x963\x0e\xdd\n\x9b\x84\x93m`\xd7\x0b\xb3\xd6\x12\xd5\xe0|\xe6py\xc0\xcd\xa3SR\xae \xd2\x9a\xe1q\xb69#\xc6H\xdf\xf7\xf7\x1bO\x1f\x8a\xfb\n\xac\xaa\x0bZP\xe5\xe2\xe7\xd9\xa4\x94\x8b|\xa7n\xba&lt;|yA\xeb,\xcd\xcc\xb1\x1d\x06$\x1b\x16\x8b\x16c!\xeaD\xe3z\\cH\xe3H\xca\x16\xe7=\x8bY\x87\x15\x88)\x105\x13C\xc0\xa9@\xc9\x18o\xb0\xbeG\x15\xd28"\x9d\xafOB\xa1\x14\x87fA\xac\xd6=E2E\xc1\xfb\x86}\x0c\xa8\x85\xa4\x81&lt;L\xe8\x148\xdf\x07\x96\xab\x1e\xf1\xcaLZ\xc61\xe2\xe73f\xebK\x84\\HiB\x87=N"\xe3\x10\xc8\x19\xbc\xd4)\x85\xb1L\x84aBDX\xaf\xd7\xcc\xfb\x19\x88\xf0\xf0\xb5\x03V\x8b\x11\'#R\x16\xdc&gt;\x8f\xdc9\x9d\xd8^\xe8?\xe4\x9c*g\xa6uN\xeb|{\xce\x14\xa6\xfb\x8d\xa5_\x14\xf7\xfd\xc4\xda\x0f\x03)%\x8aJ\x9dD\xb0\x82\x02\xa2\xc2\xee|\xc3r\xde`\xc5\xe2\xfb91Ev\xbb\xc8\xbc\xedi\x1a\x079\xa0j\xea\xac\x96BH\xb9.N\xec\x03\xc1X\xb2\x164\'\xd4\x19D,\xabnN\xb7hQ\x81\xde\x1b\xfc\xa5\x83*\xd8\x91#\xf4-\xa8\x12\xc3\x1eI\xe0\x8c\xd0\x8a\x90\xe2D)B)\tM\xa9\xe6V9\xe1\xbc\xa7\xebz\x96\xeb\xcb\x88\x8dhj\xd0\xdd\x84u\x95\xe2\xf0\xae\xa5\x97\x86Y\x8c\x8c\xbb-\xae\xb5LY\x89\xc5\x92\x8b@\x1apcd\x9f\n\xddlA\xd6B\x8a#\xd3\x18I\xa9\x9e\xa8\xd7\x1e\xbe\xca\xb2\xeb1\xe5\x1e\xe3&amp;p;\x06\xc4\x08\xa6\x98\x8b\xddF\x01s\xa1\x02\xf6@\xcc\xa8\xfc\xbb\xb8\xef\xd9^\x0c\x01c=Z2P\xc7PD\x0cY!\xa4\x88o\x16\x88\xb7\xe4\x12\xc8S\xa0\xb8L\xb3jI\x06JTL\x86}\x1c\xe8f3\x14K\xc9\x850\x05\x864\xd0.\xe6\xf4\xfd\x02gA\x8c\xb0Z-\xb0\x0e\x8af\xa4\xa4:\xa9\xdaw\x18i0\xf6\xa25\x84R\xd4\xe0\x8de\x0c\x11\x1d\xf6\xb4\xbe\xa3xK7Lh\x1a\xd1\xaeC\x8da\xb6Z\x93\x10b\x0c\xa0\xd0\xcef\xa4\xac\x18\xf2\x85\xc2\xcc\x84\x8aRlA\\\xcbb6cL\x17E\x86\xefi\x9cc\x1a2\x85D\xca#1\xd5\xf5\xff\xfd~\x8f1\x1e\x1b\x12\x9d\x16\xd6\x1d\xf46\xd1]\x9cP\x08,\x97K6\x9b\r\xa20\x8e\x03!\x86\xfb\xfd*\x7fQ\xdcw`\xed\x87\x01\xcdu\xff\xaf\x8a\xe7\x19,r\xd1\x8c6h\xc94\xc5\x11\x87\x11k3x\x8bwJ\xe7=\xe3\x18\x18\xa6\x11\xef\x1cy\x1a\xb0b1\xd6\xd2\xcd\x16\x84q\xa2\xef:\xc4\x14\xa68!\xcer6li\x9c\xc1\xdbZ\xa6\x1b[+Pg\\\xad\x18]\x835\x1d\xaaJ\x9eF\x1ag(}\xad"mL\xf8vF\xf4\x16\x15\xa5\xedg\x04c\xd0\x0b\xfd\x87)\x05B, \x96\x90c\x1d\xeb\xb1\x86v\xd6\xe2\xe7=\x8a`\xa5a\xdd7(sN\xceN\x10\x03\xb3\xd5\x8a\x9c\x02\x9a\x84a\x9c\x98\xf5\x06o[N\xcf\xce\xb1\n%fzq\xcc\xbb\x06\xd8\xd7\xf9w\x0c\xfb\xfd\x1e\x91\xda7M93\x8e\xe3\x87\xae\xc6\x07!\xee;\xb0RJ(\x8a&lt;;S\xceE2,\x8a\xb1B\xdb9\xacIh\x08\xb4\x0b\xcb\xe5U\xcf\xe5\xc6\xb1\xb0B\xb6B0B\x8e\xa5nC\xf7\xbe\x92\xa6\xed\n]E\x8c\x08E#x\xc30NLg\xe7u\x8e\xbe\xeb\xb0\x9d\xe0Rb\xde\xcd1\xed\x8ca;\xd2\xaf\x9b:\xf5\x99\xea\xa3\xb1Nj\xcf\xb1d\xb4$\x92m\x107\xc3\xfb\xaa\x01_\x8ca\x9a\xf6\xa4i\xa4\xc4\x8cQ\x07\x14r\xae\xec\xbeo*u\xa6\n\x14C\xee*\xfd1\xeev\x94)a\xad\xa5o{FU\xa6)\xe2KbW\nE\x0bg\xdbs\xd6\xab\x15SP\xb2+\xacf\x96u\xe78\x0f\x99\x90\r\xb9\xa4\n\xa4"L\xdb\x81\xbbw\xee\xf0\xc2\'^x\xbf_\xe7\x87\xe2\xbe\x03+\xe7\\\x17\x05\xa8\xc9h\xc9\x99r\xd1(\xb6F\xf0\x0e\x8a\x04\xfa\xb6a\xd1[\xac\x14L\xc9\xc4\xb16\xa7\x9dZ\xf6!a{\x07\x06Z\xdf\xd2\xcfZ\x8c\xaf[\xc8hG\xca\x85\xbe]\xa2)\x92b\xc4\xd6\xea\xa0NI\x14\x08!\x82\na\x08(\xb5Q\x9d\xb0x_\xe7\xe2\xc7\xb3\x81&lt;\x06|g\x11\xebp\x16\xf6\xe7\xe7\xa4\x98\x891\x92)\x95\xec\x14\xb0\xaal\xe3H\x18\'\xa68\x91(\x88q\xecv\x19\xeb\xab0\xee\x14G\xac\xf5\\]\x1c\xb0\x9a\xd5)R\xb5\x99\x983\x0eC\x0c#\x90\xf1\xd6\x12\xadP\xacC\xacg&gt;\xefa\x17\xc9\x1a\x7f\xc1\x80\x9f\xe0\x04~\xe8\xfb\xbe\x9bW\x7f\xd8\x871\x9b/\xee\xf7+\x05\x1e\x00`Yk\x10\x03\xa6H%\x1c\x8d\xa1h\x1d\x13\xee\xacaf\x1dW\x16\x0bV^9X\xf6\x182)NX\x89\x0cI8\x8d\x01\xe7\x1b|\xebi{_\xf7\x0b\xa7\x894\xed\x90RY|k\x1d\xa2\xa5\x8a\xdb\xf6\r)\x8c\x88\ni,\xec\xd3\x86\xae\xeb\xe8\xbb\x9e0\xee\xf19\x81Q\xac\xed1\xc9\x10\x87\r"J\x11!\x97\x84k{\xc6\xb8c\x7f\xbe\xa3\x14%\x94H,\x05c,S\x1a\x18\xc6\x89\xdd~`\xbb\xdf\x13\xd52\xc6H.\xc2f\xbb#M\x85\xa6\xb3\xa8\xad\xac\xf9\xc9&lt;\xb0n\xa0_\xccq\xad\xc3\x14E\x86\x01g\x84\xd9\xacR\'Ml(\xba\x87\x0b\xc9pL]\xe3\xb7\xd6\x92K%jmq\xbc\xfe[\xfe\x0e\'?\xff\x16\xfe\xc7\xaf\xfeFV\x87\x97\xb8\x18m\xfc\xb5\t,Ue\xb1XbD\xea\xd5\'Z\x1f\x87\x11f\xbe\xe5\xf2b\xce\xcc;Z\x0b\x9d\xb74\x80\xf3\x1d\x91\x8c+\x1e\x15\xc5Y\xa9\x9c\xa4FRi8\xdem\xb9w\xb2A\t8\xe7\x99\xc6\xc8\xcc{\xfa\xce\x93\xb5`[\x8f-\x99\x18\n\x92\xc0\xcf\x1a\x86)\x10B\xa0\xf7srJ4m\xc3\xb0?\xc2n,y\x1aI!`\x9a\x96\xb9\x9fc\x89LS\xc4\xd8\xca\xd8\xefwu\xf3:ee\x8c\x81\xcd8\x91\xb3e\xb3\x9d\xd8\x84D\xba ccH\xe4\x12)c\x01\x15\x9c\x18\x0c\x16\x95\xc8\xf6\xee\x0e\xdf\xb6\x1c,\x16\x94\x18\xf0\xd4\x93q\xbf\x9bH1\x93B"\xe5\x00%\x82\x1a\xa4\x8e\xc2\x02\x82\x18\xd0\x14!&amp;n\xbe\xfdg\xf9\xd1\xd7\x7f+\x9f\xf3;\xff\xf0}\x05\xd5}\x07\x16@\xd34h\x11\x8a\xd6\xaaPU\xebj\xbdw\x1c\\\x9as83\\\xb9\xd4ac\xc4\x15\x8b\xb7\x16k\r\xa9\xd4\xa5\xd0\xde:\xd4B\x01\xee\x9e\x9cr\xb4\xdb\xb2\x9d\x04I\x99\\\x12\xab\xf9\x82\xd1\x04\xc2\x89\x12SA\xb5p\xf5\xf0\x80\xa4\xd5\xe1\xab\x9f\x06&lt;\x8a\xb3\x06o\x1d\x0f]\xbd\x86m,\xbe\xa9\x1a\x0ea\x1a9\xdf\x9c\x91\xc5\x12\xa6\x91~\xd6\x11S\xa6\xe4\xcc\xd9\xf9\x96\xcd80\xc5\xc8yR\xf6\xfb\x89\xb3\xd3=\xbb1\x13\xb4\xb0\x99\x12\xd9PW\xd5\x9a\xba\xbe/\xa9\xa0\xa9\x10J\xe2\xce\x9d;\x14\xf5X;c\x96\xa0\xa7A\\&amp;\xd9B\xd9M\xf4M\xc7\xd9\xf9\x16#\x96\xc6\x1b\xda\xce\xe2\x8d\x03S\t\xe5\x923\xf3\xcesy\xdd3M\x85\x906\xfc\xec\x8f|\'\x9f\xf5\x05_\x821\xbfFO,U%\xe7\xcc\x1b~\xe0\xfb1\xb6&amp;\xa1\xb9TaZ\xa8\x9bU\xe7g\xe7&lt;\xb1&gt;\xa0\x90\xe9\xbd\xbf\xc8\xc3Jm\xa9\x88%j$\x15\xc5\xa8!e\xe5l\xbb#F\x18\xce\'\x86\x9cp\x8dE7\x81d\x84q\x1c\xc8Y\xd1\x02w\x8fw\xcc\x963\x8c\x17\x0e:\xa1\xb3\x82\xc6H\xe7;Z9f\xb6\xe8Y\xaf+`\xd5*\xa9@\x18\xf6\x8c\xc5`BB\xbcp&gt;\r\x1co6\x9c\x8d\x03\xa7\x9b\xc8X`\x1a#GG{\x9e:9g\xc8\x05q\xa6\x8a\xe9b\xe9\xba\x81\xb6\xb5t\xd6\xe2\r\x88\xa9\x0b\xab\xfb\xc1\xa2&amp;\xb0\xcbu\xca\xe2p\xde1s\x8a\t\x99m\xd8\xe1\x9a\x06\x83aH\x99\xc6*\xceM\xb4M\xc3\xee\xa2\x85\xb3l,\x8f/zz),;E\xc7-\xd3\xb0\xa3\x9f/\xb8\x9f\xd7\xe1}\x03V\x8a\x81\xaf\xf9\xca\xff\x07\xdf\xf2\x0f\xbf\x89\xa5\x08G\x17\x0c\x9fjM\xe2\xf3E\xc5cE\xb0*\xa8\xa9d\xe0T*\xeb\xec\x1b\xa9\xad\x9b\xca\xa62\x0e#\xa7\xbb\x81I\r#\x8a\xb1\x96d,\'\xc3\xc46+\x9b\xf3-!&amp;r\x81\xc6Z\xda\xdd\x80\xf7\x96\xb5\xb7\xaczO\xe7\r\xce\x8f\xa4\x02\xd7\xb4\xd0\x88A\xba\x16\x95\xc8\x94\x13\xc7\'\'\x84\x10\xe8f\x1e\xdfXv!s\xbe\x1f\xb9y|\xc2\xbd\x93\xc4&gt;\x14\xb6c\xe4\xe8|\xcf6f\xac\x08\x07\xae\xe1R\xdf\xb0\x9e\xf5\xcc\xd6\xdd\xb3_)b\x88\x0ca\x82\x141{\x87\xf7\x8eQ\x13\x8b\xe0\x19\x8d\xe2:K\x08\xa1\x8a\x81\xb4M-j\x06\xa5i\x0c\xde\x15\xd2\x14\x00\xc5y\xc3\xb5E\xc3\xe3W:\x98F\x16\xde\xb2L\xca\xb8\xdf^\x00\xeb\xfe\xc5}\x01\x96\xaa\xf2co\xf8W|\xe0\xcd\xdf\xcd\xe3\x0f\xcdx\xe6\xf4\x1e\xd6\xd4\x91^D(\xaa\x84\x14\x11\x99\x91\x8a\x90B\xa6\xed\x1cY\xa8U#\x90c\xaa\x82\xb4\xde\xb3\xd9\xec\x99v\x81\xd3\xfd\xc8P\xa4N\n\xa4Z\xe5\xe5)\x10\x93\x92\xc6\xc8\x102c\x08 \x82\xdd\t\x8ds\xec\xdb\x96\xed,\xf1\xd0\xc1\x9c\xb4\xdbb\x92\xe2D\x98b\xa4\xed\x1bf\xf3\x1ec\x1d\xc9(\xa7\xc3\x9eV[\xda\xd0\xb0\x9d\x02\xa7\xfb\xc0\xd1V9\xda\x06\xce\x86\x89\xb3!`\x8dp\xfd\xd2\x8c\xc7\x1e\xba\xcc\x8b_\xf08\x87\xcb9\xeb\x85%\xe4\xfd\x85\x7f\x0f\xa8\xb1\xdc\xbbwL\xd8\x0eL\xdb\xc0\xf9\xb0\xc5\x94\x8c\xc9\x99\x82a\x1f\x13\x06e\xd6z./g\x1c\x9foh$S&lt;\x95\xf6(u\n\xc4\x8b\xe5\xfaj\xce\xe1aG9+\x1cv\x1d-\x85i\xbf\x01\x1e\xfa\xb5\x07\xac\x9c3?\xf7\xa3\xdf\xcf\x9d\xf7|\x80\xf7\x1f\xedh\xda\x86&gt;)C\xae\xcb\xea\xa8"\xb9\x92\xa5\xa1@\x8c\xc2F\'|k\xf1R\x07\xddL\x86\x143\xc3\x108?\x1b\x98Bf\x98\x12S\x16\x9a\xc6\xe0\xc4p\xed\xd2a\x1d\xd43u\x0cg\xcc\xf0\xd4Sw\xf8\xe0\xcd{l6{\x86}`\n\x89\xedd\x89!\xb0^\xce8\xda\xef\x89\xb6p\xc9.Y{\x83\xee\x06\x92\x16\xdc\xbc#\x8d\x99\x8ca7%\x8e\xc7\x89\x0f\xdc9\xe3\xbd7O\x19\xa7\x88\xc7p\xb0\xe8\xb0\x9d\xa5\x11\xc3f;\xf2\xb6\x9f{\x0fR\xc0\xe7\x84\xa5pxi\xc1\xd5\x87\xd6\\\xb9\xb2\xe4\xb0\xf3l\xa7@\xbf\xec\xc0g\xf6\x9b\x1d\xc5*X\xc1Z[EC\xbc!\x86\x1d%G\x1c\x8aI\xe0M\x83\xca\x9e\xd6\n\xeb\xc6su=\xa7\xe9=n\xefX\xb6\xb5\x9d4mO\xf85Y\x15N\xc3\x9etv\xc2#\x97\x0f9\n\x05#\rI\x03)\x07\xa2\xd6-aP\xc4\x0b`\x88\xe9bN\xbc\xc0t\x91\xe3\x18\xc9\x18\x15r\xa8\xfc\xcfvL\x84\xa0\x98F\x98\xf7\x86+\xeb\x03V\xab\x052\x05v\x9bm%!\x15L\t\\]u\x1c\xb6\rZ\x0c\xbb\x92\xd8\xec\xf6\xdc&gt;\xdaq\xba\x9b\xb8r0\xc7w\x1dP\xaf3k\r\xf3~\xc6\xbci\xd8\xb7\x91\\\nS\x08l\x86\x81\x0f&lt;}J\x08\x99u\xdf\xe1\xadp\x14#Z2\x83Xn\xde\xdb3\x86TGt\x8c\xe0\x8c\xd0\xdf&gt;\xc5\xbd\xf3)V\x9d\xe3\x89\xab\x07\x1c,&lt;\x07\x07s\x96\xcb\x19N\n\x8doX\xf5-\xb2\x1b\xb9r\xf5\x10k!\xc4H\x94\xccda\x9f\xa0i=\x0f]\xbfL:\xdf\xf0\x82k\x0b\x9e\x7f\xd9\xb3\xc0\x93\x9a\x16\xd3Te\x9c\xf3\xa3g*+{\x1fY\xf8\xfb\x02\xac\x14\x06:F\xae\xacg\xbcB-\xb7\x92\xb2)\xe7\x0ccArb\xac#SH\xeb\x10#u\x1e\xdc\n\xde\x08\xb61\xecr!\x9bB\xe7[6\xbbHH\x99)g\xd4\xc0\xc1\xdcs\xe5`\xc9~\x1a\xb9\xfd\xde{\x08=\xcf\x9c\x0f\x0cc\xa4DX\xcf\x1d\x87\x87K\xb2\x8e\xb5\xc76M\\^;bq\xec\xb7\x81\x0f&lt;sNC\xe6\xc6\xc3\x97X.\x97x\x05\x8b2[\xaf\x98/\x95i\n\x1c\x9d\x1csr\xba!\x84\xc8zfY\xce \'\xc7%\xdb\xb0\x89\x13w\xce\x07b\x82G\x1f}\x9c\xe7=\xfc\x10o\xfe\x897a\\\xc7\x95k\xd7\xb8}r\xc4\x07\x8f\xb7\xdc&gt;\xbd\xcb\x95\xa5\xe7\xc3_\xecx\xec\xb1C\xba\xbec\xe1Z\x86\xb33\xba\x87.\xa3N9\xdb\x9c2\x8d\x82\xed:\xc4\x081\x0f\x18\xe7H\xe7[\x16\x9d\xe1\xd1+\x0b\xd6\x8b\x8e4V\xef \xdfy\xda~F\x1ev\x17d\xc4\xfd\x8b\xfb\x03\xac\x14\x89y\xc4Z\xc3\xb2\x07o\x1dS\xee\xd9\x9c\xef\x101\xc4\\\xf7\xeb6C$\x1ff\x10K,\x85^\xb5\xb2\xd4\xb1\xbaJ\x88\xa9JyF\x85Y\xdf\xd0\xf5-\xeb\xd5\x8c\xdb\xf7\xcey\xe6h\xc7\xd9&gt;s\xba=b\x88\xcaj}\xc0C\xd7\xae\xf1\xde\x0f&lt;\x89t-\xd3nG\'\x86\xc3\xc5\x82\xdd8A\x8e\xcc\x0ch\'\x9cm\xf6\xec\xf6#y\x9d\x11\x85\xd6:Z\'\x18\xeb\x98\xf5-S\x1ciM\xc7\x95\xd5\xc4\xb5y\x8fs\x96h\x1a\x9e\xb9{\xcc\xd5\x835\xdd\xe5\x03&gt;\xf0\xde[\xdc\xbd\xf94\xf7\x9e~\x9a\xc6\xc0\x8b\x1f\xbf\xc2\x0b\x9e\xb8\xc6\xa3w\x1c\x1f\xf8\x80\xe1\xe8|\xcbv\x1bx\xd7;\x9f\xa11\xca\xa3\x8f]\xe5x\xb3\xa7=X\xb3\\\xf5\x9c\xdf\xbcE\x98\x94\xa6\xed\xb0\xaeE5QB\xe1\xde\xbdS6\xfb\xc0\xe3\x8f\xf6&lt;\xef\xda\x15\x92\x01m\x141\x85y\xd7\xd3ZK\x99\xee\xff\xd0\xdf\xfd\xe3\xb1T\xb1\x8dG\xa6=\x8dS^\xfa\xfc%\xa7\xe3\x9e\x0f\xde\x8b\xa4\xa4\xecba\xb3\x8b\xe4l\xd0F\x88\xc6b\xbc\xc7\x89e\xe5Z\x86a\x8fi\x0c~\xd6\xb0H\x91N*\xa9x\xf7\xf8\x9c\xb7?y\xcc\xf9T\x13\xe1\x82EMf\xd8\xef\xb8u\xeb\x19\x9ay\xc3\xc7|\xfcGrv\xf44\xef}\xc7{`\xd8\xf2\xc4\xe1!J!N\x03\xbe\xed\x18,\x9c\r\x03M\xe3\xe9\x9de\xd1v8+\xcc\xdb\x96\xe4-wO&lt;\xbd\xf7\\Z\xcd\xb8zp\xc8l1\xe7\x03\xb7nq\xb8\xea\xb9|y\x85\x18G&gt;:\xe7l\xca\xa00o&lt;\x1f\xf9\xf2\x17\xe1\xe2\x9e\x83\xc6r\xf8\xd8\x9a\x9c\x0f\x984s\xfb\xee\x11\xefx\xd7\xd3\xdc&lt;\xda\xf2\xe2\x17&lt;\xc4\x8a\xc2\x07\x9e\xb9I\x1e\x06\x1e:\xbcL+\x8e},H6\x841\xb0\xd9\x8e\x18gxh\xbd\xc0h\xa0\x18\xcb\xe1\xcc2n3\x8a\xc1KO7\xbbt\x9f3\xac\xfb\x04,\xe7&lt;\xbe\xedh:G\x9fz\xce\xc6\tg\r7\x1e9d\x8awH\x18\x86\xf3B\x0c\x85\xac\xc2\xc25\xa4\xach6\x14\xa34mC\xdb\xd6j\xf0\xd2\x95K\xf8\xc5\x82\xd3\xb3=\xdb}\xe0\xd6\xdd\r\xfb\x900V\xb8\xf1\xa2\x87\xd8\x9e\xefx\xfa\xe93\xbc\x16\x08\x137^\xf0(\x8f?t\x89I\x06f\x0fm\x18\xb6\x81n&gt;\'\xdb\xc4\xd5\xcb\x8f\xb1h\x1b\x8eO\xcf\xd8\x8e\x9b\xaa\x85%\x8a\xf1\x05\xe9\x1a\xa6aG\x8a\x86q\x18Y/z\x8c*\x97\xaf\xacI\xc0\xf5kW()\xb3\xdf\xed\x11c\xf9\xd8\x97&gt;\xca\xc1\xa5\xcb\xecw{\x88\x13\xed\xf6\x8c\xe1\xfc\x9cR23ky\xe4\xf1GY?\xf4\x10\xa7\x9b\x13\xde\xf3\x9e\'\xb9s|\xc2\xe9\xbdc\xdc\xe8\xb1\x8b\x8e\'\xae?\x0f\t\x03\x03\xf1Ckg\xb98\xa2\x16\x1e\xbf\xb4d\xd8\xec8\xbbg\x98\xcb!\xb2r(\x8e\xe2,c\xd72{\xe8\xf9\xf75\xbf\xbao\xc0j\xda\x8e\xae_\xb0\xcb\x85y\xd71\x84\xccb\xbed\xb6\xb8\xcc~\x08\x98fb?\xee\x18\xc7\x91m\x9c\xd8;O/BJ\x11\xd39\xce\x86\r\xeb\x835!U9mu\r\xbei9\xb9u\x8f\x18G\x1e\x7fd\xc9\xa2\xf5\\\xe9\x1bV\x97\x0fx\xb7\xf1\x1c\x0f[\xae\x1f\x1c\xf0q/}\x01\xd3{\x9f\xe2\xec\xee\x1d|\x11\xb4o\x99\x1f\xcc\xd8\xc7-\x97\xaf^\xe2`=c3\x9cS\xce&amp;n\xdd\xbe\xcd\xf3\xaf]&amp;\x0f{L\x08\x14[\xb5$:\'H\t,W\x1d\xbe\xf3\xc4}`\xbd\x9cs\xe7\xe9gH!2\xa1\xc8\xe6\x8c\xb3\xa3S\x1a\x11\xb0pztD\xd7X\x96\xab%W/_\x01W\xd8\x9e\xde\xe4\xf2\xe1\x8a\xfd\xdc\xf1\x8a\'^\xc1\xb2\x9f\xb1Z\xad1\x0e\xf2\xb4\xe7\xe8(P\xa6\xc4&gt;$"p\x96\x13\x8b\x99\xe5\x92-\x90\xeb\x1e\xa2QpM\x87\xe9\x12^\x94\x9c\x0bW\x1f{\xc1}\x05\xd5}\x04\xd6\x0c\xf1s\xc45X\xe7p\xa5\xe0\xbc\xa5\xef\x1c/\xbf\xf1\x18\xe5\xfdO\xa3&amp;q\xebN`\xbb\xdd\x12/\xf5t\xde_\xb41\x12E\r\xb7n\xdf\xc5\xe1x\xfa\xe6\x1d\xcew\x91\x90\x85m\x8c\xbc\xf8\xb1\x87x\xdeC\x8frrrB\x1c\x06tP^\xf5\xd8uB8d\xb6\xe89\xba\xf5\x14\xa6\xe9\xb9{t\x84\x86\x0c\xa6`g\x9ekW\x0e\xb8\xf5\xcc3\x98r\x15g\x1a\xbc\xef\xab\xef\xe0|\xc0\xf6}\xd5\xc6\xb2\x86\x92\x02\xaa\x99~\xd62\xe4\xc2\xad{w\xd9\x0f\x01W,9\x81Z\x0b\x1ai\x9b\x06\x8b\xc7\xe4\xc2$\x8a\xf1\x80sLS\xe0\xf4\xf4\x8c!M\xf8\xce\xa39\xd6%\x0c\x89\xf8V\xe9;\xd8\x0f;\x8e\xef\xdcb?\x05\xa6\x08\xa9@*\x99\xde*\x1f\xf3\xa2G\x19\x8f\xee\xe1\xa8\x042(]\xd7\xb19\xbf\x83\xe9\x0fi\xd6\x97\x99\xad\x0e\xee7\xae\xee\x0f\xb0\x8cs\\\x7f\xe2%l\x9fy\x12+\x82\x0c[\x94X\xc7\x88\xc7\x81\xa6L&lt;\xef`N\x93\xea\x90\xd64%:\x0c\xad\x85\xc6{r4Lad7\xed\xe9\xe7k&amp;&amp;\xca0q\xe3\xb1Gy\xfc\xb1\xab\xac\xb2\xd0\x8brt\xa4\x14\n\xdba\x0b%\x13\xcf\xf7\xa8\x16\xd2v\xacT@N\xcc\xba\x8e\xcdf\xc34\xee@\x13&amp;\xe4:x\x98\nP\x05EL\xd3"6\xa3Z0\xe2\x99\xcf\x97\xf4\xcd@\n\x81)g\xc4:\xa6\xb1\x82\xa9\x94\x89\x99o)cf\x8c\x13\x12\x13Z\x0cA3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45489.96614583334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>785466</v>
+        <v>784982</v>
       </c>
       <c r="B11" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Luis Zubeldia</t>
-        </is>
+          <t>Roger Machado</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9bzTXtRaw profile type xmp\x00\x00H\x89\x95VK\xb2\x9c0\x0c\xdc\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3KU\x969~Z63\xf0\xf8g\xa8\xe7y\x1e\xf4\xe9nK\x02\xfa\xfb\xfb\x0f\xfd\xc2\'r\x8a$\xa3u2X\xa7\x93\x05\x9d4[\xd2\xc8\xc1\xf7:j1\xf1{2\xb1i\xd4\xa4\xb3\xb2f\x19\xda\xef_\xeb\x99M\n\x85\x81\xc3\xcf\x0b\xa1\x19N*C\xe6\x94\x92\xee\xc2\xb6{\x1e\xba\xb3\x84+\xc8\x80P3Y\xfdp1Xq\xd1\x19\x86\xc6\xb3D\xe9\xfd\xc2\x7fA\x18+c\x9dZ\x10|\x8b\xf5\x08\x0b4\xd6\xf1\xe4\tX\xc8a\x85\xe1\x0e\x17@e\x13\x15\xec{\x0bp\xefA\xb1\x00\xe7r\x1f\xa4Y\x81\x08&lt;\x1d(\xdb1\xd8\x96\x12\x9c\xe4H\x08\x813\x02\x8e\\\xe8C\xc6\r\xb1f8f\x97\xd1\xa1\x032Hr\x91E\xd03\xdc5\xc1`\x89\x007\xb9\xf3\xb9\xd9\x97^\xd4\x11\xc8ol\x08\xa0G\xed?4\xea.jQs\x1aUJ(\xa4\nY\xb3\x87r\\)W\x1b\xae\\"\\\x0c\x7f\x02j\x1c\xdc\x18\xab\xe2\x16j\x05\x84\x02O\xc8\x85c\x94\x91\xe7\xaf\xa8Hx\x8e\xc9m\xe8\x19z\xd3\xcfu\xb8\x93\x81\xb69\xcf\x0f\xfa]y\xd0S}\xbc-\x0fJ\xb1\xd6\x05\x82)\x1f\xeb\xa4Vm\xd1\x8d\x8d\x07^R\x16\x15|O\xb0B\x1f\xd2\xb7V\xc2u\xad\xfcH\xe6z\xa2\xc2\xf6\x96\xb4kS\x01\xdfx_SK\xb9,;\xcc\x8c\x08\xde\xd0(\xe7d\xd0\x08g\x01b\x99\xab\xdcs-|\x04}\x89Q\xfc\xf8\xb3+\x80\x15\x87\x8f\xbaA\xafK\xe2\t\xdf\x82\x95%\xfb\xa9\x1e\xdd\xb6^-\x11\xddf\xca\x06\xe9S_\x93\x986G\xc5\x88\xa9\xc3\x04\x05\x9b0j&lt;m\x12G\xe4\x93F:\x11?n\xbf\rc\xc3\x1e\xbf\xfb=\x94"\x1a\x01\xa6Gd\x9b4a\xa0G\xfeH\xbe`\xca\x95*\x03S\x06\x12\x0f\x1e\x91\xb2\xc7\xae\x93V\xd9W\xae\xcf2g\xef\xcd\x8cc\xe9\xe8{f\xa5\xb5\xe8\x95\xe1jw\xde\x8f\xf4\xae\xb7\x9f\xab\x8c\x0e\xc4N\xebv\x1f\xf2\xd8\xde\xf4\xbe\xbf\xef\xdb\x9b\xde\xf7\xb7\x85\xf3\'ZklZ\x9f\xa0k77\x97\xa5\x99\xe5\xba\x99\x97\xd0\x90\xc32\x01h\xe7\xd3\x17\xb3x\xd0\xd9\xa7\xaf\x0f\xdf\xd4\xdb`\xd8W]6\xe6\xab\xf5&gt;0=\x89\xf8VCz~\x86\xbe\xd3\x90&gt;o"\xd7\xd3\xf1D\xc3\x0e\xbd\x1f~\x0e\xc4\xf3\xb7\x91\x16z;0@\xde\xab\x1c\xd7\x085\xbd\xc1\x8b\xe1iWe\xa9\xd6tm\xfe\x7f%I\xab\x9c{\xb7\x87v\xa9\xefN\xab\x1f\xed\xcc\x0eoo`\xff\x0f"K&lt;\x07\x14\xa6u\t\x00\x00w\xe5IDATx\xda\xec\xfd\xd9\xb3\xad\xe9u\xd6\x0b\xfe\xde\xf6kg\xbb\xba\xdde\x9f\xa9L\xb5\xb6\x0c\x96m\xe9\x1c\xec\x03\xb8\x88\x03\xa6\xcc9QAD]\xd4]\x9d\xba\x85?\x81\xbf\xa0\x1c\xa7"\xaa"\xa8[NAA\x01\xa6\x82\xc6\x02\x19\x1b\x1f\xd9\x92@\x12\x96\x94R*\x95\xdd\xde\x99\xbb\xdf\xab\x99\xed\xd7\xbfM]|ko\xcb\xb4\'\xa2\x80\\2\x1e\x11+v;\xe7\x9ak\xbe\xcf\x1cc\xbcc&lt;\xe3\x19"\xc6\x18\xf9\xaf\xd0b\x8c\xd4uMUU(\xa5\x98N\xa7\x18c\xf87\xdf\x0e!\xc4\xbf\xf5\xb8\x7f\xdf\xbf\xfd\xb1\xfd\x81\xe9\x8f\xfb\x05\xfc\x97\xb6\x1f\x07FUU\xb4m\x8b\x14\x12\xa3\r!\rl6\x1b\xfa\xbeG)\xc5r\xb9Dk\xfd\xec1!\x04v\xbb\x1d]\xd7\x91\xe79\x93\xc9\x04)%1Fb\x8c\x84\x10\x10B \xa5D\x08\x81\xf7\x1e\xa5\xd4\x7f\x95\x00\x14\x7f\xd4=\xd6\xd3C\x7fz\xb8\xde\xfbg\x07~vz\xca\xe9\xe9\x19\xd7\xae]\xc3y\xc7\xc5\xf99I\x9arxx\xc8\xc5\xf9\x05UU\xf1\xd2\xcb/a\xb4\xa1i\x1b\xde\x7f\xff}\xde\xfc\xde\xf7\xb8s\xe7\x0e\xd7\xae]\xe7\x17\x7f\xe9\x17y\xe9\xa5\x97\xe8\xba\x8e\xf7\xde{\x8f\xf7\xde{\x8f\x93\x93\x13\x9e\x7f\xfey\x8e\x8f\x8f\xc9\xb2\xec\xd9\xf7\x15B\xfcW\x05\xb0?\xf2\xc0r\xce\xd1\xb6-I\x92 \x84\xa0\xef{\x84\x10\xcf&lt;\xd1\x8f\xde\xfe\x11EQ \x84\xe0\xf4\xf4\t\xd7\xaf_\'\x84\xc8~\xbf\xe3\xddw\xdfCk\xc508&gt;\xfa\xe8#\xdey\xe7\x1d\x1e=~Db\x13&gt;\xf7\xb9\xcf\xd1\xb4\r\xaf\xbc\xfc\n\x0f\x1e&gt;\xe0\xcb_\xfe2\xf7\xef\xdf\xe7\xa5\x97^\xe2\xa5\x97^\xe2O\xfd\xb7\xff-_\xfa\xd2\x97\x10R\x02prrB\x92$\xff\xf6\x01\xfc\x11\x05\xdb\x1fi`\xc5\x18\xf1\xde\x03c\x18\xf3\xce3\xb8\x81\xd5jE\x08\x81\xf9l\xc6z\xbd\xe1\xad\xb7\xdeB\x08\xf8\xe8\xa3\xbb&lt;y\xf2\x98j\xbfGH\xc9\xdd\xbbw\xf9\xee\xf7\xbeG\x8c\x91\xa6i\xd8n\xb7H))\xf2\x9cO\x7f\xe6\xd3&lt;|\xf0\x88\xb6kY\xaf\xd7TU\xc5l6\xa3,K\xf6\xfb=y\x9e\xf3K\xbf\xf8\x8b\xec\xab\n\xad\x14\xff\xe7\xff\xe9\x7f\xe2S\x9f\xfa\x14I\x92\x90$\xc9\xb3\xb0\xa9\xf5\x1f\xcdl\xe4\x8f4\xb0B\x08\x0c\xc3\x80\xd6\x9a\xae\xeb\xf8\xd1\xdb?\xe2\x1b\xff\xf2\x1b\xbc\xf3\xce;4u\xcd\xe1\xc1!7o\xded_\xedy\xfb\x87?\xe4\xfb?\xf8\x01\xb7\xef\xdc\x01 \xcfr\xaa\xba"\x84@\x08\x81\x93\x93\x13v\xbb\x1d\xbb\xdd\x0e\xad5\xce9\xa4\x94$IB\xd7u(\xa50\xc6\xe0\xbd\xa7\xaa*^x\xe1\x05\x9a\xa6a\xb5Z!\x84\xe0\x0b_\xf8\x02\x7f\xe9/\xfd%~\xf9\xcf\xfe2\x07\x87\x07x\xefI\x92\x84\xa2(PJ\xfd\xa1p\xfdG\xc1\xfeH~\\\xfe\xcdC\x1a\x86\x81\xb7\xdez\x8b_\xfb\xbf\xfe\x1a_\xfb\xda\xd7\x80\xc8f\xbb\xc5{\xcf\xd1\xd1!Y\x96svzJU\xd7\x00\xb4m\xcb\xf9\xf99\xd6Z\x92$\xc1{\xcfj\xb5\xe2\xc6\x8d\x1b\xcfB\xab1\x86\xae\xeb\xa8\xaa\x8a\x18#\xc6\x18\x92$A)\x85\x94\x12k\r\xbb\xdd\x16\xe7\x1c\xde{\xbe\xf1\x8do\xb0\\,x\xe3\xf57\xf8\xe0\xf6\x07|x\xe7\x0e7n\xdc\xe0\x8b_\xfa\x12\xcb\xe5\xf2\x8f\x14\xa8\xe0\x8f \xb0\x9e\xde\xce\x9e\xde\xcc\x94R|\xf4\xd1G\xfc\xcd\xbf\xf97\xf9{\x7f\xff\xef=\xfb;\xe7\x1c!\x04\x1e?~B\x08\x1e\xef\x03\xcb\xe5\x92,\xcb\xb8\xb8\xb8`\xbb\xdd\xd2\xf7=!\x04\x16\x8b\x05B\x08\xf6\xfb=J)n\xdd\xba\x85s\x8e\x87\x0f\x1f\x12Bxv\xf3k\x9a\x06c\x0c\xc6\x18\xfa~`:\x99R\x14%\x8f\x1f?f\x18\x06\xea\xba\xe6\x1b\xdf\xf8:!D\xbe\xf8\xc5/rqq\xc1\xfb\xef\xbf\x0f@\x9a\xa6\xa4i\x8a\xbc\xcc\xc9~\xd2M\xfd\xb5\xbf\xf6\xd7\xfe\xda\xc7\xfd"\xfe\xff\xb1\x18#\xc30\xb0\xd9lh\xdbv\xfc\xa1.CK\xd7u&lt;z\xf4\x88\xbf\xf3\xb7\xff6\xff\x9f\xbf\xf3w\xa8\x9b\x86\xc9d\x02@\xd7u\xcf@\xa8\xb5!\x84@UU\x94e\t\x8c^+\xc6H\x9e\xe7Xk\x9f\xe5XY\x96qxx\x88\xb1\x86\xddnG]\xd7c\xfevy\xdb|\xfa\xfd\xdb\xb6%\xcb2\x92$!\xc6@]\xd7l\xb6[\x1e&gt;|H\xdf\xf7\xbc\xf1\xc97\x90R\xe2\x9d\xe7\xde\xbd{\xacV+\x8a\xa2 \xcb2\xe0\'?\xa9\xff\x89\xf7X}\xdf\xf3\xbd\xef\xbd\xc9\xb7\xbe\xf5-\x84\x80\xe7\x9f{\x9eW_{\x95\xa2(xp\xff\x01o\xbd\xf5\x16\x7f\xfd\xaf\xff?y\xf0\xf0\x01\x93II\xdb\x8e\xe1\xae,\x0bB\x088\xe7\t!&lt;K\xf4\x1f?~\x8c\x94\xf22\x9cY\xa4\x94\x84\x10\x00\x90J\xd1v-Jk|\x1f@\x80\x90\x02\x10@D\ny\xf9\xdc%\xc30pvv\xc6\xab\xaf\xbeJ\xdf\xf7H\xb9b\xb3\xd9\xb0\xdf\xef\xb9}\xfb6RI\xfe\xca_\xf9+\xcc\xe7s\xdc\xe0x\xef\xbd\xf7PR\xf1\x99\xcf|\x1a!\xe53\xcf\xf7\x93j?\xb1\xc9\xfb\xd3\x97\xfd\x8d\xaf\x7f\x9d\x7f\xf6\xcf\xfe\x19\x0f\x1e&lt; M3\x10\x90&amp;\t7o\xde\xe2\xc6\x8d\x1b\xbc\xfd\xf6\x0f\xf9\x9f\xff\xe7\xff\x1b\xeb\xcd\x1a\xa5\x9e\x86\x99HQ\x94(\xa5\xa9\xaa\n\xef=\xd3\xe9\x94\xba\xae\xe9\xba\xee\xd2\x8b\xe9g\xa1i\xb7\xdb\xa1\x94z\xf6weY\xe2\x9c\xfbC^\xf2\xe9c\xe6\xf3\xf9X\x07\xbb\xb8 I\x12\xa6\xd3)w\xef\xde}\xe6\xcd\x9csh\xad\xb9u\xeb\x16\xbf\xfc\xcb\xbf\x8c5\x86_\xf9\x95_\xe1\xa5\x97_\xe6\xf6\xfb\x1f`\x13\x8b\xd6\x9aO|\xe2\x13\xcc\xe6\xf3\xf1\x90~\x02\xbd\xd7O\x9c\xc7\xfa\xf1*\xb8\xf7\x9e\xbf\xf5\xb7\xfe\x16E^\xf0\xd9\xcf|\x96r2\xc1X\xc3o\xfe\xe6o\xf2\xbb\xbf\xf7{\xfc\xe5\xbf\xfc\x97\xf9\xeaW\x7f\x97\xd5z\x05\x8c\xc5Q!\xc4e\x05}\xff\xccS\xfd\xf8\x95\xffi\xf2\x1dB\xa0m[\xe6\xf3\xf9\xb3\xeaz\x9e\xe7x\xef\xd9\xef\xf7\xc0\x1f\x84K\xe0Y\xf2&gt;zAG\xd7uXkY,\x16\xecv;\xd6\xeb\xf5\xb3&lt;\xaa\xaek\xd6\xeb5\xbf\xfe\xeb\xbf\xfe\xac\x9dT\xd75\x1f|\xf0\x01\x17\x17+^y\xf5\x15^y\xe5\x95g \xfcI\xbc1\xfe\xc4y\xac\xa7\xd7\x7f\x18?\xfd\x7f\xf5\xaf\xfeUn\xdf\xbe\x8d\x92\x92\x07\x0f\x1e\xf2\xfa\x1b\xaf\xb3\xdf\xef\xf9\xe67\xbf\xc9|6\xe3\xd1\xa3G\xd4M\xf3\xcc\xa3@D)\xfd\xacL0\x0c\xc3%8"O\xdf\x89$I0\xc6&lt;\xcb\x93B\x08Xk\x19\x86\xe1YIa\xbf\xdf?{\x1dJ)\xe6\xf39y\x9esvv\xf6\x0c\xf4RJf\xb3\xd93\xafW\x14\x05\x07\x07c\xa9\xe1\xe2\xe2\x82\x10\x02}\xdf\xf3\xa9O~\x92\xc9d\xc2~\xbf\'\xcbs~\xe1\x17~\x81_\xfe\xe5?\xcb\xab\xaf\xbe\xc6\xc9\xc91\xc6\xd8\x9f8`\xfd\xc4y\xac\xa7\xdeD\x08\xc1v\xbb\xe5\xe0\xe0\x80\x7f\xf4\x0f\xff!\x00\xab\xf5\x9a\x0fn\x7f\x80R\x8a\xba\xae9??\x7fv \xd6\xdag\xb7A\xef=}\xdf?\x0bOeY\xe0\xbd\xa7i\xc6\xb0\xf6\xb4\xe5\xf3\xb4%c\x8cAJ\xf9\xac&amp;\xa6\xb5~\xe6\xed\xac\xb5\x9c\x9c\x9c\xb0\\.\x9f\x15P\x85\x10dY\xf6,\xcf2\xc6\xe0\x9c\xc39\xf7\xac\xf2\xdf\xf7=\x00M\xd3\xf0\xed\x7f\xfd\xaf)\x8a\x82\xe7\x9f{\x8e\x10#\xdf\xfe\xf6\xb7\t!\xf0\xe1\x87\x1f\xf1K\xbf\xf4K&lt;\xf7\xdcs\xcf\x9e\xf7\'\xc5\xae$\xb0~\xdc\x89\xc6\x18\x9f\x85\xa2\xedv\xcbw\xbf\xf3]\xb2&lt;c:\x9d\xf2\xee\xbb\xef\xb2Y\xad\x90J\xd14\r1F\xda\xb6}\x06\x98\x18\xe3\xb3\xd0\x06&lt;\xf3N\xde\xfbg \xc9\xb2\x84\xb2,\xe8\xfb\x9e\xb6\xed\x10B&lt;+E&lt;-^\xb6m\xfb\xac\xf4\xf0\x14P\x00EQprrBY\x96\xcfz\x81\xc7\xc7\xc7\x1c\x1d\x1da\x8c\xe1\xf6\xed\xdb\xcf\x1e+\xa5D)\x85R\x8aa\x18h\x9a\xe6\x0f\x95&gt;\xfa\xbe\xe7\xf4\xec\x8c4M\xa9\xaa\xeaY\x0e7\x9dNI\x92\x84\xe3\xe3c\x94R\x1f\xf7\xd1\xfco\xb6+\t,\x18A\xf0\xe0\xfe\x03\xd6\xeb5/\xbc\xf8\x02\x93\xc9\x84\x8b\x8b\x0b~\xf7w\x7f\x97\x18\x03\xeb\xcd\x86\xbb\x1f}\xc4\xed\xdb\xb7\xd9l6\x7f\xe8f\xf7\xd4\xa3\x01\x7f\x88u\xf0\xe3^Fk}\xe9\x95\x12\x9a\xa6}\x96/\xfd\xf8WUUH)q\xce\xf1\xd4W\xc4\x10q~\xfc\xb3\x92\n\xef&lt;\x0f\x1f&lt;\xc0y\xcf|&gt;G)\xc5~\xbfG\x08\xc1n\xb7{\xf6\xf3\x18c\xc8\xb2\x0c\xa5\x14!\x84g\x14\x9d\xa7\x1f\x82\xbe\xef\x9fU\xe9\xa5\x94\xdc\xbf\x7f\x9f\xedv\xcbt:\xe5\xc5\x17_\xe4\xe0\xe0\xe0\xd9c\x7f\x12\x1a\xdaW\x12XO\x8b\x8d\xdf\xfc\xd6\xbf\xe2\xab_\xfd]~\xe6\xf3?\xc3\x7f\xff\xe7\xff\xfb\x11\x08y\xc6\x9d;w\xf8\xbd\xaf}\x8d\x0f\xde\x7f\x9f\xe62\x7f\x92R""D\xe0)\n\x9e\x82*2z\xae\x10\x03qL\x8b\xc8\xb2\x94\x18\x03RH\xfc\xe0\x18\xba\x1eb$D\x90\xca\x02\\\x16?5yj\x19\xfa\x0e) /r\x94\xd2l\xb7;\x9a\xba\xa1\xef\xc6\x90\x16$\xf4!\x12\x06\x8f\xeb\x07L\xa2\x91r\xcc\xdd\x12cH\x8c\xa1\xebz\xba\xc1\x11\x83\'1\x8a\xe5b\xcen\xdf\xb0\xde\xee \x8e\x85\xd6\xa7\xd5\xfe\xa1\x1f\xf8\xd1\xdb?\xe4\xda\xb5\x13\x1e&gt;|\xc8\x0b/\xbc\xf0,_{\xea1\xaf2\xb8\xae\\\x99\xf7\xe9\xa7\xd89G\xd3\xb44m\xcb\x83\x87\x0f\xd8\xefvL\xa7S\xfa\xae\xe3w~\xe7_p\xe7\xf6\xedg\xa5\x02\x18s\xaf\xe1\xd2\x93\x10\xff\xa0\xad\xa3\x94DIA\x0c\x01"\x97\xf9\xcd@\xd7\xb68\xe7\xd8W\x15\xfd\xe0\x88\xc8KPF\x88\x0e)&lt;ZE\xa4p\x84\xd0\xe3\xa3\xc7EO7\xf4\xb8\x18\x90F\xe1\x82c\x08\x0e\x9d\x18\xe6\xf3\tV\x0b\xac\x96(\t\xae\xef0F\x93\xd8\x844\xcdPR\xe2\xbd\xa7\xc8\x0b&amp;\xe5d\xcc\xd3b\xc4X\xc3tR&gt;\xf3Fi\x9ar|t\xc4\xc1rI\xf0\x91\xb7\xbe\xff\x03\xfe\xc1?\xf8u\xde|\xf3\xcdg\xa5\x90\x9f\x84\xfb\xd6\x95\xf5XeY\xf2\x99\xcf|\x86\xdb\xb7o\x93e\x19]\xd7\xf1\xc3\x1f\xfe\x90\x7f\xf5\xcdo\xf2\xce;\xef\xd2u\xdd\xb3\xff\xfb\xd4~\xfcM\x17\x02\x84\x88\x88\x18\xc1G\xf4\xe5\xad\xcf\x8bH\x9aXD\x0ctMG\x9ae`4\x83s\xc8\x18\xd1R \x89\xa4V\x13\x88D)\x19|$\x00\x11\x89o;\xda\xbe\x7f\xe6\x19\x85\x88(%\x98\x169~\x18\x18:\x87\n\x9e\xdeE\xb4T\xb4q\xc0\x05A\xc4\x13\xbc#5\x02\xa94\xbb\xbdc\xb3\xad\x08\xc1\x91$\x96(\xfe\x807V7\ru]#\x94\xe4\xf4\xec\x9c\xaf}\xed\xf7\xb8q\xe3\xc6\xb3\x1cn\xb9\\rpp\xf0,\xa1\xbf\x8a\x9e\xeb\xca\x01\xeb\xc7oq\xcf?\xff&lt;\x87G\x87|\xeb_}\x93"\xcf\xb9}\xfb6\xdf\xf9\xfd\xdf\'\xf8\x001"~\xec\x868\x0c\xc3\x8f?\tRI \x00\x01\x15#\xa9\x14\x18-\x112\xa0d\x1c\xc3Tn\x19\x9c\xa3n{\x92\x18\xd0B`\xa5\xc0*Ef\x13Z\xef\x10i\x817\x19\x8f\xcf\xd7\xc4\xbe\x1d\xc3e\xf0(\x01Y\x9a\xa0\x84d\xa8j6\x12t\x92R7\r\xfd0\x90\x18\xc5\xa4,\xd8W\ru\xd7\x00\x02\xbc\xa3\xdeo\t\x08z/@*\\\xd7\xe1\xdc\x80\x10\x80\x88\xacV+\xd6\xeb\x151\x8ey\x99\xd2\x8a\xedv\xcbo\xfd\xd6oQ\x14\x05\xaf\xbc\xfc\n7n\xdc\xa0\xef{\x0e\x0f\x0fI\xd3\xf4\xe3&gt;\xb2\x7f\xa7]9`\x01\xcf\x12\xed\xe9t\xca\x17~\xf6\x0b|\xfdk_\xe7o\xfc/\xff\x0b\xbb\xdd\x8eG\x8f\x1e\xe3\x9d\x1b=\xd3e\x1d\xe9\xd9\x0f\xa35\x11\x81w\x1e\x88\x18)H\xa5\xc2\x88@\xaa$\x89\x08$\n\xb4\x16\x04&lt;\x91\xc0 \x02\xa5\xf1H)\xb0\x12\x8c\x08\x18-\x90\xb2c\x17&lt;\x83W8\xa5I\xf0\x14\x93\x1cb\xa0\xa9\xf7\x18%\xc9\xad"I\x12\xaa\xbd\xa3mZ\xaa\xb6\'\xcbs&amp;\x93\x82\xeb\x07K\xeajGi\x05J@\xd39 \xd0u\x1d&gt;@\x10\x12\xa1,Z\x9b\xd1\xeb\x8915\xf4\xde\x8d\x9e\xd5\xff\x01\xcd\xb9\xebz\xde{\xef=~\xf8\xd6[&lt;w\xeb\x16I\x9ar\xe7\xce\x1d\xd6\xeb5o\xbc\xf1\xc6\x95l\xfd\\I`=\xad^\xc7\x18y\xed\xb5\xd7\xf8S\x7f\xeaO\xf1k\xbf\xf6k\xdc\xb9s\x07\xe7\x06\xa2\x88H).\x01\x18!F\xac\xd1c\xbe\x15\x05\x8a\x80\r\x91T@) 1\x91L\tR\t\x99\x8a(\x15\x18;|\x01\x91\n\x82\x17$\x89%\xb3n\xcc\xab\x88D&lt;CTl\xfa\x9e\x96\x1d\xb3\x99\'j\x85\x88\x01\xf2\x844\xb1\x97y\xdd@\x16\xa0sP;G\x12[\x0e\xb3\x94\x85h\xd0n\x8b-%\xbd\xd0&lt;\xba\xa8i{1\xe6UJ \x08\xb8\xd0c\x12\x8b2)\xc3\xd0\xa1/\xebe]?\xd0\xb6\xdde\xa2\xcee!\xb7\xe7+_\xf9\n\xaf\xbc\xfa\x1a?\xfb\x85\x9f\xa3\xaaj...\xf0\xde\xa3\xb5\xber\xe1\xf0J\x02\xeb)c\xf3\xe2\xfc\x827\xbf\xff&amp;\xdf\xfe\xf6\xb7\xff\x80E\x10\x02y\x96&gt;\xab)\xa9\x18\t\x83\x03\xef\x11a\xcc\xa5\x8c\x8c\x94ZP\x88H\xa9!\x11\x91\xd48\x8c\x84\xc2J\xb4\x8c\x88py\xc01`s\x895\x81,\xd5$Fb\xa4$\xb1\x864-\x88B\xe1\x90\x0cQ\xb2\xedF\x06\x83V\x82\xc4\x1a|\x14\xd4m\x8f\x0b\xd0\xf6\x9e\xaa\x1f\x18\x82#1\x8ey*17\xe7\xd4\x01\xee\x9e\xafP\x13\xcd\xba\x91\xb4\x01\x12\tS\x0b]\xe7\xa8\x05\x0cJ@\xd4\xcf&lt;5!2)\',\xe6\x0b\xa2\x10\\\\\x9c\x8d\xd5\xfb\xfd\x8eo\x7f\xfb\xdb\xfc\xb9\xff\xdd\x9f#\xcb\xb2\xcb\x90\x19\xafd\xcb\xe7\xca\x01+\x84\xc0j\xb5\xe2k_\xfb\x1a\xbf\xf1\xe5/s\xef\xee]\xce\xce\xcei\x9af|\xc1Z\xd3\xf5=J*\xe2\xe5\xff\x07\x10!\x92jE\xa6#\xb9\x80\x89\x86R\xc1\xccJ\x8c\x14h9\x86N#\x03\xa9\x96H\xc0\x10)RM\x99[\xb4\x02)\x15Z*r\xa3\x99f\x19E\x9a2\x9f\x94\x18\xa5p!P\r\x0e\x89\x00\x11P\xda\x10\xa2`\x08\x82!\x04\x02\x82\x81@\xd5\x0f87\x90H\x89\x1b"\xa7\xfb\x1a9\xb1dZs\xdaD\xb6\x03\xc80p\\\x1a\x9c\x0f&lt;\xda{\xb6\x0e|\xf0x\xe7p! \x84&amp;\xcfr\x8a\xb2$M3\xb2,!\x04GQ\x14|\xf2\x8d\xd7\x9f\xb5\x8d^}\xf5\x95+[\xdb\xbaR\xc0\xf2\xc1\xf3\xe4\xf1\x13\xbe\xfcO\xff)\xbf\xf9\xcf\x7f\x93\xc4X~\xf5W\x7f\x95\xfb\xf7\xef\xf3\xd7\xff\xfa\x1d`\xac\x068\xe7q"".\xc3\xa1U\x92\x0cA&amp;`B`\x99+\xa6I\x1c\xc3^t\xa8\x08\x99\x12\x18\xa5\xd0r\xcc\xbd\xf2\xc4\x90ZC\xaa5e\x9e#\x84 \xca\x88\xd1\x8a\xdc\x1a\nc\xc9\x93\x84&lt;\xb5X\xa3\x08!R\x86q \x03) F"\x82\x10&lt;\xce{\x02\x02\x1f%"\xd3H\x99\x83\x10x\x04\xd7\xea\x8ck\x85\xe1\xb4\x1ex\xb8k\xb8\xbfi\xd8\xf4\x82\xc1+:/\xb1\n\xae\xe5\x96\xb6\x85\xfd\xe0Y\xb5=M?\xb0\xdelYov\x848^@\x8a"g\xb9&lt;\xe4\xc9\xe9\x19\xbf\xf7{\xbf\xcb\xeb\x9fx\x9d\xc5\x17~\xf6\xb2pw\xf5\xec\xca\x00+\xc6\xc8n\xbb\xe37\xbe\xfc\x1b\xfc\xfa\xaf\xff\x03~\xf9\xcf\xfe2\x7f\xf1W~\x85\xcdv\xc3\xe3\xc7\x8f\x99\xcd\xa6T\xd5\x9e\xa1\xeb\x08R\xe2cD!\xb0\x02r)(\xd4\x18\xf6\x96V0\xcb \xd7\x02MDF\x81\x8c\x01\xab\x05\x89\x16XcH\x8c\xa6H,\x89Vh)1Z\xa3\x95\xc6\xe3\xf0C\xcf\x10\x02h\x83\x12\x82\xa1\xef\t^^^\xed%Z\xe9\xb1_\x19\xe3\xf8\xef1\x10\xbcG(Eb4R\x08\x94\x84\x18A(M\xa2-\x991\x1c\xba\xc8q\xd31?[\xf1h[\xd3zI\x1f$\xbb6\x12\x84gP\x06Q{\xbc\xb08\xd7\xd2\xb5\rR]r\xc1\x04\xc4\x98\xd14\r\xdf\xfa\xd6\xb7\xb8~\xfd:\xf3\xf9\x82\'\x8f\x9fP\x96%F\x9agL\x88\xab\xe2\xb5\xae\x0c\xb0\xbc\xf7\xdc\xbe}\x9b\x7f\xfc\x8f\xff1\x9f\xfd\xec\xa7\xf9\xd5_\xfd\xdf\xf3\x9d\xef|\x87\xbf\xfd\xff\xfe\xdb|\xff\x07\xdf\xa7\xaa*\x0e\x0f\x96\xf4]K\xdb44u\x8b\xf0\x03\xb9\x10\xcc\r,\x12\x98X\x98\xd8\xd1SY"\x82\xb1p\xaa\x84\xc0*\xd02"E$1\x9a\xd4\x1a2k\x90\x08\xa4d\xf4&lt;C?z\xac,\xc3\x1a{Y\xc0\x7fJ\xe4\x03wY\xb8\x15B\x82\x1c\x9b\xd3\x01\x10\x97=&lt;\xe7\x06\x14\x82("\xc1y\x94\xb1$6Ag\x96\xa4\xed\x99&amp;9\x87\xb9\xe5\xc9v\xc7\xa6j\xd94\x8e\xaaP\xec\xba\x81\xbd\x83\xae\x0b\xec;\xcf$OQ\xda\xd3v\x1dc\xc9d\xfc\xfe\xdb\xed\x96\xc5b\x811\x86\xaf\x7f\xfdk\x1c\x1f\x1f\xf1\xc2\x8b/0\x0c\x03\xc300\x99L\xfe\x9d#f\x1f\x87]\x19`\r\xc3\xc0\x9d\x0f\xef\xd0\xd4\r\x7f\xfa\xbf\xfb\xd3\xacV+\xfe\xc6\xdf\xf8\x1b\xfc\xd6o\xff6F+Rk0\xca`\xf2\x14\x15\x03b\xe8\xd1\x08\xe6Vr\x98\n\xe6i \xd7\x01+#Fxd\x00\x90H!\xc7\xfcIx\xb4\x1ekTVI\xacVdI\x82Q\x8a\x18"!\x06\xa40L\xcb\x92\xf9\xa4\xc4*\x8d\x04\xa4\xbc&lt;V!\x10J\\\x12\xfb\x02Z(B\x04\xe7\x02\x08\x89\x94cX\x04A\x0c\x11\x1f\x02\xb1\xef\x90B \x85$\xd7\nG +\x0c\x8bdN\xbb\x8c\x9cn*\xb6\xbd\xe7\xd1j\xcb\xaa\x0f8\n\x9a\xd0\xa0\xa2%+\x13vUE7t\xc4(i\xdb\x96\'O\x9e\x8c\x14\x1ecY\x1e,I\xd3\x94\xf6\xb2\x83\xf0\xe3\xad\x9e\xab`W\x02X1F\xfa\xbe\xe7\xfe\xfd\x07,\x97K^y\xe5U\xbe\xf2\x95\xafp\xf7\xde]\x16\xcb\x05}\xdb\\\x1e\x90\xc0u\x03\xa1o\xc9d\xa0\xcc4\xcbD0\xb7\x91\x89\x89\xa42r\x99[#\xa4 F.\xcb\x12\x8c\xfdB\x14FI\x8c\x10h@\x85\x80V\n\xa9\x15B\x19\x92\xa4\xc4j\x83\x12\xf2\x19=&amp;z\xc70\x0c#]Yi\xb4\xb6\x88K\xea\xb2\xd2\x06\x1f\x00\xe2\xb3J?\x00JC\x88\xb8\x10\t\xbd\x07&lt;I\x9a\x13\x82C\xc4H\x9e\xa6\x94RQ\xa4\x19\xfb\xdea\xb5\x84\xb3-^j\xda\xa0\xe8/j\x9aA\x90&amp;\x19A)|\xef\xc9\xcb\xecY\x92~zv\xca\xe7\x7f\xfa\xa7\xc9\xb2\x9c\xc7\x8f\x1eqpx\xc8l6\xbb2\xde\n\xae\x08\xb0\x9eRU\xd6\xeb5\xc6\x18\xb4\xd6\xdc\xbes\x9b{\xf7\xef\xa3\xa4\xc2\xda\x84\xc4(|\xd7\xd2\xd4{\x84\xebI\x15\x94VP\x18HU\xc0H\x81\xd1\x9a\x18 \n\x8f\x92c\x8dK\x8a\x88\x96\x12\x85"5\x86\xdcZ\xf24e\x96gX\xa5\xd0J"\xb5B\x1aM\x9a\xa4()\x89!\xe0B\x18\x1f\'-(\x8d\x14c^\xa5\x8d%\xc6K\x86\x83R\x97a0B\xbc\xbc\x99I\x85\xd4\x06e\xd2\xcb(&amp;\xf1!\xd0H\x8d0\tZ\x8em\xa5\xe8\x03\xa9\xb5\x08\xa5\xb8\xbe\x98\x12\x02\xc4\xcd\x9e.h\xba\xdep\xdeI\xb6A\xd0I\x83M-\xf3\xe9\x0c!\xc43&amp;\xea\xfd{\xf7x\xef\xddwy\xfd\xf5O&lt;\x0b\x81W%\xbf\x82+\x02,\x18s\xa1&lt;\xcf\xc7Ch\xc6\x16\x88\xb5\x16!$e\x91\xe3\xba\x86\xaek\x11!\xa0\x05\xa8\xe8QD\xb4\x92h56\x9b\x85\x90H5z\'\xa3"Q\x825\x90YC"\x13\xa6E\x86Qz\x04W\x92`\x84@*\x81\xd0c\xce\xf4T\x0cdll\xf7D\x01\xd6\x18\x04\xe3MP /\x1b\xdc\x81\xe0\x05&gt;\x8c\x1eJi\x83\x12\x91\x18&lt;H\x8dL2$\x12\x11%\xf1\xb2\x88\x1b\x85 \nP\x89\xc1w-Bz\\\xdf\xa1\xa2\xa7\xb0\x92\xa3iJ\xe7{\xfa\xd0R\xa5\x02\x17"\xa0\x91Vc\x93\x14.\xa7\x91b\x8c\xcf\xf8[G\xc7G\xcc\xe6s\xd24\xbdR\xa0\x82+\x04,k-\xb7n\xde\xe4\xab_\xfd*\xbf\xf9\xcf\x7f\x93\x1f|\xffM\xa4\x10\x1c\x1e\x1c`\x94\xa4\x0e\x8eA+\x82\x03+ \x13\x92D\xfa\xb1\r\xa3\xc4H\xd3\x88\x97\x15y)0R\xa0\xe4X\xc8\xcc\x13K\x99f\x14Y\x82R\x92T\x1bLb\xd1B\xa0/\x87$\x90\x82!&lt;\xe5\xc5\x8f7&gt;\x85@+\x83\xd6\x06\xa94\xc1\xf7\xf8\xe0\x91HR\x99\xa0\x94&amp;2\xde\xfe\x94\x18\x1f\x1bL\x82\xc8K\x88\x82\xe8\xc7\xd6\x8c\xc7\x13\x83\'\xe2q@\x14\x12A$\x04\xb0R\x93YA?8N\xa6\x05\x1eA;xz\xe70*aZ\xce\xd1i\x8eR\x8a\'\xa7g\x081Ni\x9f\x9c\x9c\xf0\xf9\xcf\x7f\x9e\xa2(\xae\xe4,\xe2\x95\x01V\x9a\xa6\xfc\xcc\xcf\xfc\x0c?\xf8\xc1\x0f\xf8\xcd\x7f\xf6\x15\xde|\xf3{\xa4Y\x82\x92\x91\xae\xae\x89C\x8f\x8a\x9e\xdcH\n\x9d\x90\xe0I\xe3\x80\x11\x01uIz\x91b\x1c\xc3\xd2Jb\x94&amp;5\x9a\xdc&amp;\xa4\xc6\x90\x18K\xdb\xb4\x08\x06\xect\x062\xc3X\x8b\x14c\x0ef\x8d\xc1J=z-\x01\nPR\x92(u\xd9jQ\x04-\x88J\xe0C@\n\x8d\x92\x9a\x18\xc7z\x15J\xa3M\x82\xcf2d6A\n\x83\xf6\x81\xbe\xedPn\xa0\xadw\x04\xdfQw\x03F\x88K\xf6C\x82\xc0\xa3\x95F\x1bG\xd6y\xe6i\xc2\xd1\x14\x06\xdf\xf3\xb8\x8b\xb8\\\x93LK\x02#\x9fl\xbdQh\x14]\xd7\xf2\xf8\xf1c^x\xf1\xc5\x8f\xfb\xe8\xfe\x9dve\x80%\xa5\xe4\xf9\xe7\x9f\xe7\x7f\xfc\x1f\xfe\x07\xb6\x9b5\xdf\xfd\xde\xbfFH\xa8\xea=\xd2\x05\x86\xb6\xc1\x10(\xacF\xfb\x0e\x11\x06\x8c\x0eX)Q"\x8e\xc5O%!\x06\xd2\xc4\x92(E\xa2\xc6\xdbd\x9eeH\t}\x17@(P):-\xc9\'#\xa5\xd8\x0f=H\x81\x8a\x0ekG\x0f&amp;\x18\x93\xff(\x19\xbd\x8d\x88\x0c\x11\xa20\x08+\x81\xb1\x89\x1c.\xe9\xcf\xe8\x14\x91\x14\x90\xe5\xf8\xa4@\x98\x14\xa3\x0cb\x18\xf0\xce!\xea\x1dCW\x11\x87\x16\x15&lt;^\xb4\x84\xa1#\xca\x800\x12-$\xda\tL\x88\xa4z \xd7\x82i\x944q`:)I\xca\t&amp;1\xf4\xc3@p\x91\x87\x0f\x1e\xf2\x1b\xff\xe4\x9fp\xeb\xd6-^y\xf5\xd5\x8f\xfb\xf8\xfe-\xbb2\xc0\x82\x11\\\'\xd7\xae\x8dt\x99\xc3C\xd6\x9b\x15y\x9a\xb0\x98N\xe8\x85\x87.\x90\xc4\x9e0\x0c(\xdfc\x8dB\x8b\x91\xee\xa2\xa5\xc0(\x81\x96\x06#%F)\xb2$e:)\xb1zL\xb0\x85\xd2\xe8lBRL0\x93\x051\xcd\x88\x02t\x16\xc7\xbc\xa9\xaf\x80\x08:\xc1\xc5Q8\xcd\xcb?(QH\xef\xd1J\x81\x1e}\xa4\xd6vdXh\x05\xb6\xc0\xdb\x02U\xce\xb0\xc5\x94(-Jh\xa4s\xd4uM\x9a\x16\xc8vOh*L\xf0\x0c\xaa\xa2\xddm\xe9bG\x94 \xb5\xc1\xa6\t\xa9\x1f\xc8\x93\x9e2q\xb4B"\x8d$\xba\x16-\xa7\x9c\\;A\x08\xc9\xc5\xd9\x9a\xcdj\xc5w\xbf\xfb=\xbe\xf7\xbd\xef\xf1\xfc\x0b/\\9&gt;\xfc\x95\x02\xd6\xd3\x04T\n\x81V\x92\xb2\xc8\xb8vx\xc0Dk\x9a\xbe\xc6\x85\x1a\xed#\x18\x85\xd2\x9aTE\xd4eM)\xd1\x97\x9fz%\xd1R\x92\xa7\t\xd3\xb2d6\x9d\x12\x82C+\xc5Dk\xb4\xcd\x11Ra$\x0c}\xc30\xf4$\xd6\xa0\x95\xa4u\x81(\xd4\x08\x1e\xa1\x91F"\xb4 \x12\t""\t \x05&gt;F\xc2e\x89\xc4\xc5@\xf4\x02\x19$2\x1a\xa2\xed\t\xa6G\xa7\x06\x88\xf8\x18\x90Vc\x92\x04c\r\xbd\xd2\xd0\xb5\xa4\xca\xa2\x8d\xa5\xa9W\xd4\xd5\x1a\x1b\x06$\x81\xd4h\x16\xd3\x12\xa12\xbaU\x07\xd6\x12\xa5$\xba\x9e~p,\xe6\x0b\xb2$\x7f\xd6#\xbcw\xef.n\x18\xe0\x8a\xf1\xb2\xae\x0c\xb0\x9er\x8f\xb4\xd6\xf8K\xda\xcc\xeb\xaf\xbeBi\x0c\xfdzE\xeb;\xc2\xd00\xb4{\xac\x18[4V\t\x12\xad\xc6\xbe\x9f6H \xb5\x9a,\xcb\x98\x14%\xa91H\xa5p\xdea\x92\x14\xa4\xc4\xf9\x01%\x04u\xdb\xa0\x94A\xab\xb1D\xe1\xc2@b\x0c1B\xf0\x1d1\xf4h\xa31A\x12\x86\x81&gt;x\xacV\x04\x15\tR\x11\x10cAR\x8ey\x9d\xd2\x02i\x041:\x86\xb6&amp;\xf8\xc8\x98\xfeC"%\xd1y\xa4\xba\xac}y\x8fT\x1a+\x05Qz\xfa\xbe\xc6\xb7=JH$\x812\x1b\x15n\xca$2h\x8d\xcdR\xa2RH\xa1@Y\xda\xa6{6}\xd4u=\xe1\n\x15F\x9f\xda\x95\x01\xd6S\x1be\x82\x1a\xae\x9d\x9c\xf0\xda\x8b/\xd1m\xd6\x9c\x9e\x9fbD\xc0\xc9\x80R\x82TJ\x8c\x02\x11#FIRc\xc9\xac\xc5HM\x9e[\xb24%1\x16k\x0cJi\xa4\x0e4\xbd\x1f\x9b\xcc\xf9\x84b\xbaDH}Y1\x97\x10=\x82@\xa2""\x0c\xf4]\x87s-\x12\x85\x8a\x1a\x19\x02\x081\x02J(\xb4\xcd\x89r\xac\xd8+\xa5\xc6\xfc,-\xd0\xd9\x04UN\x89I\x8e\x0br\xac\xa3i\xc5\xe0\x06|?\x10D\x18\x9b\xe7IB\xf4\x91\xc19L6\xa1Xx\x9a\xb5\xc4\xd7;\xd0\x0e\xdfw(\xa04\x02g\x04\xc4\x80\xb1\t\xcb\xd9\x9c}\xe7i\xdb\x91\xafuxx\xc0|6\xbfra\x10\xae\x18\xb0B\x08lw[\x067\xf0\xe2\xf3\xcf!|\xc0D\x98\x15\x05\xfdF\xd3\x89\x80\x10\x1e!%\x82\x80\xbc,\x8a\x1am\xd0b\xfc5\xb3\x96"K\x11H\xa4T\xb4]\x8f\x0b\x01e5EY"\xad!DGjS\xb4\xb6\xf8\xde\x11\x83\xc3j\x85\x17\n\xa5-F\x98?\xa8WE\x89P\x1ac\x13\xd0\x1a\'$6/\x19\\\xc0\r#\xab!\x02\xce\x0b\x82\xb2X\x9b\xe2\x84\x1a\x81\'\x001\x86S\x13\x07\x06\xd7\xe3\x01\xad-\xd2*d\x88(\x06\xb4\xf7\xc82\xe2z\x07\xaeC)Gn\xe1pj\x08A\xd0\xe0!\x0c\xb8\xae\xe3\xc5\x17^F\x9a\xc7&lt;z\xf4\x98\xf9b\xc1\x8b/\xbd\xf8\xc7\x0c\xd2\xff\x98\x8dr\x8e\x8e,\xb1h\xa0\xa9v\xc4\xb6\xa1m*|\xd7\x90\xc6\x88T\x02-\x03\x9aH&amp;\xd5\xe8\xbd\xa4\x04%\xd1iJ\x9a\x14x\x17\x89a \xa8q,\xcc*\x8d\x08\x01\xe5A\xa21R\x12\x83#b\xb1i\x8a1\x05m[\x11\xaa\n\x1f\x1cD\x87\x12\x82\xe8\x18o}\x12\x84\x96De.\xdb8\x01\xdfw\xc4a\x80$E\xd9\x02\x92\x14D$\xb8\xe1\x92\x1b5\xd6\xb5\x86\xe8QV#\xad\x01\x11H\x84 DO\x8c\x0e\x95\x82\x8b\x82\xa6\x05\xb4\xc5\xe7%J\x0bT\xdf\xe2\xda\x0e\x15{fH\x84p\xb4C\x83U3"\x81\x1b7\xaf\xb1\xdem\xf0&gt;`\xec\xd5\x1c\xbf\xbfR\xc0\x12B\x90$\t\x8b\xc5\x9cG\x1f\xbe\x0f\xde\xb3Y_\xa0\tL\xf2\x9c\xae\xdb\x12\x02\xe4\xd6R\xa4\x1a\x13\xc2\xc8\x15\x17\x824IH\xac\xa5\x8b#\xdf=\x12H\x94F*I\xd3\x8d\xa3\xf3:\xcb\x98\xe8\xd98\x10\xe1\x1d\xaeo\x11:E\x88\x11\x80RH\x10\x918\xce\x89]\xb6h$HI\xb8l\xd9\xc4\x18\xf1\xc3@\xf0\xee2\'4\xa05\xc2\xa4\xe8$\x03!\xa8\xea\n\xa5\x0ci\x96\x11\xa5\xa2\xf3\x1e\x17A\xeb\x9c\xde5\x18\xa9!x\x84T\x80\x85L\xd0\x0b\x8d\x14\x11z\x83\xe8ZB\xdc\xa2|\xc4\x86H\x91X\xf2|\x823\x06\x9c\xc7\xa6\x96k\xc7G\x9c\x9f_\xb0\xdbn\x9f\x91\x1d\xaf\x92])`=\x1d\xa3\xff\xe8\xa3\x8fH\x13\xcb\xfet\x85Q@\xef\x88\xbeC\x89Hj-eb(\xd3\x14\x19\x1d\xa9\xd6\xa4\xa9%K\x13\xa4\x00\x1fAi\x85@\x12\x84\xc4\x85\x88MR\x12\x9b\xa0\x84&amp;x\x8f\x91\x1aADx\x8f\x94\x03\xb1\x17\x84\xd0\x13\xfd\x80\x14ad\x13\n\x90\x89\xc1\xd8\x04\xa9\xe4\x18~\x85\x80\xcb^\xa2g\xfc\xbd\xd0\x86\xa0,\x1e\ta|N\xa3\x05V\x83\xeb\x1a\x9c\x90D\xad\tz\x0c\xb3\x99\xb1t\x97K\x0b\\\xd7\x13\xbd#M\xcaq\xee\x11\xf0J\xa1m\x8a\xd0\x86\xa8\x13\x86\xcd\x86"\xcdP\x93\tCVPw-I^P\xa4)~:\xa3\xa9\xeb+\xc5jxjW\nX!\x8c\xcaw\xd5~\x8f\t\x03\xf8\x1e\\K\xbd=\xa7\xdf\xae\xc8e`\x9a\xa5X)\xd1\x02\x8c\xb1Xk\t\x08\x9a~\x00\x02\xca\x18\xa4\x87\xe0=0\x10}\xa0\xc8r$\x10\xa2\x1f\xe96F!cD\xc9\xc8\xd05@\xa4\xef\x1b\xac\xd2h\xa9.\x85\xd7\x14R\x19\x84\xb1H!GV\x962\x08\xa9\x89x\x84p\xe3\xef\xb5\xc1\xabq:HI\x89\x94\xe0\xba\x8e\xbe\xefF2b\x9a#\x95!\xe2\x18\xfa\x01\x94\xc4$\x82\xb6\xaa\t8\x84\x8c\xf4\xce#\xa5A&amp;\xd0GO\x10\x02\x93+\nah\x07G+@^~\x10\xca\xb2$z\xc7\xe1\xc1\x01M7\x8c\x03n\x7f\xec\xb1\xfe\xe3&amp;\x84\xa0(r\x9a\x8b\x1d]\xbd\xc7o\xd7\xe80V\xc4S\tFI\xec%\xeb3\xb1\x86(\x04M\xe7\xf18\xa2\x14\xec\xb7\xbb\x91\xba\xec\x1cJ\x8et\xe42\x0bL\x8b\xc8\xc1\xe1\x92\x18\x05:F\x121\xd6\xcb\xbc\x0f(-\x99LgD$"\x04\x8c\x04e\x0ch\x03c;\x19\x05D\xad\xf0\x8c\x933\xcaXl\x92\xa2\xd3\x82\xa8\x93\xd1\x831\xde\xf4\xda\xaeF\x0b\x05R\x13\x86\x9e\xb6m\xf0CO\x0c#\xbdfl\x98\x8f\xc4@7\x0c$6C\x9b\x1c\xa5-I&gt;\xc1\xb5\r28\xa4\x0fdy\x89\x0f\x91$U\xa0\x04&amp;\xb3\xac\xeb\x86(%\xdaj\xea\xae\xa5\xaa\xea?\xb4\xac\xe0*\xd8\x95\x03V\x8c\x91z\xb7G:\x8f\xf0\x03\xc2u\x84\xaef\x9ahr\xa5Fv\x83\xd6\xa46E\xc8\xb1\xa8\xb9\xed\x06.\xda\x9a]\xe79\xab\x1b\xda\xde]j\\i$\x82\xd9DR\xf60\x1f"\'\xcb\x19\xd7\x84f^&amp;$(Tj\t\x02Tb\xd1:EE\x8f\x04\x84\x92`\xc6\x81\tB$\x86@P\x12\xa1\x14\x9a\x08~\xa4\xf7\xa8\xc4`l\x8a\x8a\x02\xe7\x06\x1a\xe7\x18\x84a\x00\xba\xba\xa3jwTm\x83\xdf\xef\x08\xc3@\x92&amp;\x84\xe0\xc9\xb2\x04\xc2\xd8~2\x13\xf0\xd2\x80\xd0X\x9b\x92(\x83p=\xd1\r$EN\xb3\xdb\xe2\xea-\xba\xd0\xc8\xa1E\xfa\x01-a9_\x10\x85\xa2\xaa*\x0e\x0e\xae\x96\xf2\xf2\x95\x02\x96\x94\x92&lt;\xcb(\xf3\x9c\xd5\xea1}\xb5\xc7W;\xa6F\xa2/\'\x9a\xb5\x19\xf3\x1e\xa1\x14]\xd3\xd3\xa1Xw\x91\xbb\xeb\x9aG\x9b\x86V\x08\xf2\xa2\xa4\n\x92\xd0\x04\xe6\xf3)\xdd X\x07\xcf^x(\x05\xbev\xec}\xc7,7,\xe7S\xd2,%Z\x8d-\nt\xf0(?\xe0\xfc@\xd0c\xc1\xd4\r\x03\xa2\x1fP\xd6"\xb5F\x11\xf1CG\x88\x10\x86\x81A8\xean\xa0i;D\x9a\xd2a\xd9\xed*\xd6\xab5\xdb\xdd\x96\xbam\x99\xe49Z%\x9cnj\xdc\xd0\xa1\x89\xa8\x189Z.ph\xa6&amp;A\xcaHp\xe3-w\x14@)\x90\n\x04\x9e\x8b]E\x9aM\x19\x9a\x1a1DR!\x11\xd2P\xfb\xf0L\xae\xf2*\xd9\xd5\x02\x96\x10L\xca\t\xb3\xe9\x94\x07oo\x10\xd1c\xa4@D\x87\x16\x92&lt;\xb1\x085R\\\xfa\xc1Qu=\x83J\xe9\x91\xf4\xd2\x12l\xa4k\x03\xed\xb6\xc71*\xc9(\x1b\xc8\xecx\xab\xea\x11&lt;ZWT\xbdcQ\xe6\xa8t\xce\xccN M\x88F!l:&amp;\xef\x83"\xf4\x02a\x13\xc6f\xb3C\x89\x0e\xad/\xb9\xefn \\\xaa$\xf7\x83\xa7\x12=\xdb\xd6\xb1oZZ\x04\x95\x0b\x9c\xaf\xb6\xac.V4u\x83\x90\xa0\xcb\x81\xba\xad\xc7\x91\xfc\xba\xc2\x12)\xad!\x98\x94\xd6\x83\xcd\x12\ne\x11\xa3H\x04B\x8c\x02\xb7&gt;\x18\xb2\xd4\xb2\xf0\x81\xa6\xad\x10A\xd0U\x0e/\x0c\x07\xb7^B\xc6\x91\x8b\x7f\xd5\x12\xf8+\x05\xac\x08\x0cCO\xbd\xdf\xd26\x15\xb1\xdeP\x8a\x01\xab$Z*\x94\xb0\xe3\xc1\x84\xc8\xbe\xeb\xd9E\xc1\xf9\xae\xe6\xbc\rl\x9bn\xd4B\x90\x8a&gt;\x8c\xf3y\x99M\xe8\x86@\xd3l\xd9\xee\xd7\x9c\x1c\xcc)\xcd\x9c\xa1\xedXu\x03\xb9N\x99\xe4\x19"\xa4L\x8b\x84\x10\x07H\r!x\xe2\xd0#\x83$H\x85\x0f\x01\xad\x05\xd2\xb7\x08\xa9i\xbb\x8e\x10\x1c]\xd7\xb2\xeb\x1c\x9b\x01\xb6\xbdgW\xb7\x9c\xaeWt^R{\xc1\xa6jy|~F\x88\x81$/P\xc6p\xb0\\\xa2\xd2\t\xde\xf5x\xa5\xb8\xd8U\x18mXoj\xa4J\xc9\xb3\xb1\x0f\xaa\xac&amp;\x86\x80\xf2\x06\x99\xa4\xf4]\x8diw\xf4]E\x91\xcc\xe9pH+\x10\x1e\xda\xb6\xf9c`\xfd\x87,\x84\xc0~\xb7c}q\x81s\x1d:z\x12"\xa9\x0fXk\xe8\x95E\xc6\x91=\x19\xa4aP\x82U\xb7\xe3\xa3\xb3-\xced\xc8$\xe70\x01\xe7z\x8c\xd5\x94\xc5\x14\x11$\x90Q\x94)\x93,!\xb3\t\x85\x8d\x94\xda3a\x8f_?\xc0\x87)\xfbZ\xd1\x17\x13\xe6\xe5\x02-\xe2\x18\nED\x8b\x04\xa2#\x88\x81`4\x83\xc9\x19dB\xb7:\xc7\xfb\x01\xa1&lt;\xb2\xed\xb1A\xa2\x85g^\xa4\xd4\x03(\'\x98\x943\xca&lt;\xa3\xeb[\xf0\x82\xba\xed\xe8\xb75NI\xf6\xfb=\xe7R\x90\x18\xc9\xaa\x1f\xa8\x86\x9a\x90\x18N\x12\x83Q\x8a\xfe\xb2N\x16T\x82\x0e\x81\xc4\xa7\x08\x11qr j\x87\xb4\x11\x11\x02\x93rN\xf0\x81+\x86\xab\xab\x05,!\x04\xda\x1a\x9c\x84\xbe\xe9H\x1d\x18kPV\x81\x84\x89\x15Da\xe8\x83g\xb5k\xb8\xbf\xe9X\x0f\xa0\x8a\x12\x9b\x16(m\xd0\x02\xf2d\x8a\x88\x9e"\xcb)\xf2\xc9\xf8\xbcF\x10\xba\x86j}\x8a\x9a\xa4\xa4\x93\x8c\x81H\xd36\x14FBp\xb8f\x85\xec\xb7\xa4Y\x81I2b\x10\xf4]\x83\t=if\xe9L\x8ev\x92d\xe8\x18\\\x87\x8a\xc0 \xe9\x1b\xcf&gt;\n\xb6]`\xb5\xdeRw\x03Q$\x18\xe3\x10\xfd\x80\xdbW\xf4]K\xdd\x0f\x0c(\xda\x00\xed\xe0\x19\x9ccR\x96\xf8h\x18\x82\xa4\xe3\x94\xaav\xdc:\\\xb0\x98\x14X\xadIMJ\xcc\x1c\xa2\xd3\xb8]\x84\x98 \xbcE\x87\x84j\xb5ej\n\xf2,\xe3\n\xe5\xed\xc0\x15\x03\x96\x94\x92\xf9l\xc6\xe1r\xc9\x1d\x7f9\x19#"F\x1b\x92"g0\x86]\xb0\\\x98\x92z\n\xc9&lt;e\x81\xe6\xa4\x980\xbd\x1c6\xd8\xd6=\x17\x8f\x1f\xb2?\x7fB7\xb4\x9c_T\x88K6\xc4v\xbbe\xbdk\x08x\xf2"\xe3x6\xe3z\x99\xf2\xe22\xe7\xa4\xb4\\\x9bf\xe4t\x04W0\xf4\x87\xb8\xa8!vD\x11\xe8\x8c\xc5\x03q\xd8\xa1\x86\n\x89\xe3\xac\r|\xf0p\xc5\xbd\xb35\x0f\xce\xd7\xacv;\xbc\xeb\x10\x02\xb4\xd0h\xa9\x99Lr\x14\x81\\\x81\xcd\x04=\x8a\x99\xc9\x08h\xb6\xbb=\xbb\xcd\x96\x0f\x1e\x9d\xd2\x84\xc845&lt;w|\xc0\x8b7N\xb8q\xbc\xe4\xe6\xb5\x13\xae_\xbf\xc6\xd4Ztj\x89\xfb\x80\xf0\x03\xbe\x95\xc4d\x823)\xa95\x1c^je]%\xbbR\xc0\x12\x8c^\xcb\x00"\x0ehu)\xdf(K\xea\xf4\x88\x8dJ\xf1\xd9\x12\x99\xcdx\xee\xe0\x90\xc3[\xcf\x91O\xa6dy\xceb6E\x04\xcf\x83{w\xf9\x97\xbf\xfd\x15&gt;X=$\xc3al\x04\xdf\x93\x10\x99d\x91Rg\xd4}K74&lt;~\xdc\xf2\xf8!\xbc\xa5\x14\xb3I\xc6\'\x0e\x17|\xfe\xb9\x19\xaf\\_\xa0K\x89\x0b\x90\xc4\x9e\xde\x18V\xd2P\xd0\xd3\xc7\x9e\xfd\xae\xe6\x9d\x0f\xcfy\xf3\xde\x05\x1f\x9d\xae\x90\xbeG\x13\xd0q O$V\xc4Q\xd9FG\xa6\x89\'\xcf,*\xc90\xc5\x94dv@qpBP\x86}\xddp\xef\xa3\x8f\xb8\xf3\xd1]\xee=&gt;\xe3\xc9\xea\x94!:\xd6&gt;\xf0\xc3\'\xe7\x94\xb7\xef\xf3\xb9\xcf|\x9a\x17\x9e;"\x194\xa9\x9e@W\x13:G\xb3\xdf"\xcb)\xe5r\xc6t&gt;\xbdR\xa5\x06\xb8b\xc0\x8aD\x86\xa1\xa7s\x0e\x82\xc4E\xc5P\x16&lt;\x10\x19:9`\xfe\xfc\'\x99/\x0f\xc6j\xb5\x1f88Z\xf2\xd9\xcf}\x96\x83\xc5\x82YY\xd0\xec\xf7|\'T\xdc?,\xf1\x07\x059\x8eIf\x10~\xc02r\xe3\xbd\x80~\xe8XowT\x8d\xa7\r\x9am\xef\xd9\xd4[~\xef\x83\x1d\x1f&gt;\xce\xf8\x13/\x1d\xf1\x99OJ\x8e\x17\x0bha\x18:\x08k\xc4\xbec\xdb)\xbe\xf7\xd1\x05\xdf\xbf\xbf"(\xcb\xf5\xc5!\xb8\n\x19Z|;\xb2\x15p=\x85\x91\xe4\x89D\xc5\x96BI\xf2\xd4PL\n\xd2i\x89\xcd\r\xc5|FUkf\xea\x88\x1bs\xc9\xa3\xd3\x92\x1f|\x98\xf2`\xd3\xf3d\xbbGiM\xb6\xdbP\xe6\x96\xedn\x8d\x0c\x9e\x89\xb5\x88(G\xdaN\xaf\xc9\xf7=ZH\x94\xbcz\xeb\x81\xaf\x14\xb0\x84\x90$IF6Y\xd0\xa7\x0b\xd6jI\x9b\xe7\x9cnkxp\xc6\'f\xe7\xe8\xd4\xe0cd_m\xb8~\xe3\x04\x11\x1c\xde\r\xd4U\xc3\x93\xc7\xa7|t\xe7=\xaa\xf5)\xa5\x11L\x94\xc2\\\x8a\x87\x98(H\x04d\x89D\xe4S\x96&amp;\xe1b\xdf\xb0\xad[\x0e2AWZV\xcep\xef\xa2\xe7w\xde\xbdO+-?\xf7\xf9\x03\x92\xf2\x1anw\x86xr\x97\xaa\xeb\xf9\xfd{\x15\xef\xad\x047_|\x91\xeb\xf3\x94\x8b\xc7\x1f\xf1\xf8\xe2\x82TJ\x8e\xa7%FE\xaa\xdd\x06\x1f\xa0n=\xce\xf5\xd4]\xa0t\x92&lt;\xc2DH&amp;2\x82k\xf1]C\xd6n\x118\xf62pm6e\xb5_\xf3\xf0\xee}\xa6\x89\xe6\x93/\xdf\xe0d\xff\x18w\xfe\x80\xaa\x1f\xd8\x1a\x8d\xcbr\x92\xc3\x1b\x98\xd9!\xa1\xaay\xedb\xfdq\x1f\xdb\xbf\xd3\xae\x18\xb0\xc4\xa8\x88\xb7&lt;B\x1d\xde\xc4\xd7\x17Tg\x8f\xb0\xbb\x8a]\xd3\xf1\xf6\xee\x8c\x83\xd7&gt;MbR\xa4kx?3L\x8f\x17L\x8a\x19\xae\xda\xf3\xe8\xa3\x0f\xb8\xf3\xd6\xf7\xb8w\xfb}\xfcv\xcd\x90\xa5\xc8\x10\xe8\xda\x96\x18\x06\x12-\x98\x97\x05\xf3i\x81M3r/YojZ\xd7"L\xe0\x85B\x93\xa5\x0b\xde\xd9\xc1\x9d0%YI\xaa\x07\x0fx\xf8\xee[\xb8]\xc3\x10z\xd6\x95\xe0\xf9\x9f\xff"\x9f\xfe\xd2\xa7\xb9\xfd/\xbf\xcd\x9bo\xbf\xc7\xc4:\x9e\xbf~\r#"\x8f.V\x9c\xafw\xc88\xb6\x82\x9c\xeb\xf1\xd2c/\xd6\x14\xe5\x9a\xa2\xbc\xa0,\xa7L\x8b\x8cyf\xb0a\xd4\xa2X]\xeci\xeb\x8e\x85\x15,\xb3\x9c\xf94\xe7\x85\x939\xcfM\x13\x12)\x112\x12\xb4\xc4G\x18D\xc3\xc3\xfd\x19?&lt;o\xf8\xc1\x0f\xbe\xc7/|\xe9Khc\xae\x14\xe1\xef\xca\x01+\x84\xc0\xf9\xe9\x13\x1e\xdf\xfb\x90k\xaa\xe3\x90\x96\xe3\xeb%C\xc8y\xe0`\xb7Z\xa1\x8a)K+\xa9OOy\xff\xad\x1f\x12|d\x7f\xf6\x98\xb3Gwx\xf4\xce\xfbl/\xce0"R\xb7\x0e\x11\xc6\x86t?T\xb8\xa1\'7;\x96e\xca\xe1$\'\xd5\x1ac\xe0b\xd7\x11Z\xc9\x9c\x81k\xb9\xe0\xa1\xb5\x0cf\xc2\xe3^\xf3\xee\x9d\xc7\xbc\xfd\xd6\x1d\xa4\xb7,\xf2\xc8\xd1\xf4\x88O}\xe6%T\xa8x\xfb\xed\x1f\xb1ZU\x1c_\xcb\xd9\xef7&lt;:\xdf\xb1\xe9\x07lV2\x9f\x1d\xe2\xfa\x01\xdfV4}K\xd5Ac%\x8d\xb7\x9c\xad\xf6\xf8\xfb\x0f0\xae\xe6\xb0\xc8(\xd3\x04\xefz2\t\x93\xc3\x05\x01K\x9ag&lt;\xf7\xc2-^:^2M-F\x8f\x83\xbc}\xdd\x10}\xe0\xc0\x1c\x13g\x8e"1\xf4}\xf7l\x1d\xddU\xb1+\x05,`\x14\xf1\x88\x11\xb1:\xe5\xe88\xe70O9(\x0c\xa9U\xa8\xc6\xf0n\xdb\xb2X\x1c\xf0\xfcr\xc6\xbeo\xb8\xfd\xfbo\xf2\xf8tE\xb3\xbb\xa0\xda\x9f\xd3\xed\xeb\xb1\xb0\xa8\x04\xeb0\xa0\x84!z\x011\xc5$\tZ)\x9eT\x03\xeb\xdd\x19\xcb\x89E\xe2i\xfa\x81\xe03\xd62075\xb2k9{\xf4\x90\xd5\xe3\xc7T\xfbsnL\x0c\xc6\t\xd0\x02\x95\x1b\xf2\xee\t\x8f\xdf\xbf\xcb\xbd;\x1f\x11\x1c\xd4\xb5\xa3\xa9\x1a\x9a&gt;PN\x17xm\xb8\xb7\xder\xba\xdb\xd1\x87@\xd7\x0f\x0cRc\xd6\xa7\x1c\xack\x0e\xa73\xe6\xe5\x9c\xf3\xba\xe7\xbc\xba\xe0\xe6\xbc\xe0\xf9e\xc9$I\xb0iF\xd7+\xca\xe5\x92W^z\x91\x83,\x85\xbeA\x85\x16#\x05\xc8\x88\xf3\x81\xc4H\xae\x1d\x1dp\xf3\xe4\x98\xfd\xf9)\x1f~\xe7[tU\xcd\x8dW_\xe5\xf9O~\x96\x8f\xbb\xfepe\x80\x15\xe3\xa5\x96\xa85\\?&gt;\xe2\xc0\n&amp;\xb1G\x07\xc3\xd0\xd7L\x8den,b]aCO\xea\x1d\x9b\xed\x9e\xb3\'+\x1e\x9d\xaei\xbb\x8a\xde5\x0cuC\xdd6t!20\xee\xb4\xe9\x9a\x0e\xbc\xa3H\x14\x07E\xca4M\xa9\x06\xc7\xf6\xc9\x9eT\x0b|\x1f\xd1"\xd0\x08C\x16z\x92l\xca\xc3\'\xf7\xb9\xa5\x06~\xee\xe5#\x16\xc9\t\xbb\xf3\x86w\x1b\xc1\xa60\xa4\x9b\'&lt;zp\x97\xd8\xf7\xf4Np\xd6(\x16\xd3\x02\x9b%\xec\xea\x86\x8bf\xcb\xe3\xa1\xa7\xd2\x9a\xbaw\xc4&gt;0\xb7\x96(5\xabA\xb1yr\xca\xc1\xee\x82y\xa2)\xcb%&amp;+X,gd\xd3\x92\xe0\x15\xab\xfd\x8eD\x0b4\x1e\x11\x1c}\xdf\x11B\x87\xe1rR;:\xc2\xd0\x92\xa4%\x1f\xfd\xe8\x07\xdc\xfeW\xbf\xc7\xf0\xe0\x1e\xb1\x1b8z\xf5E~\xe9\xff\xf4\x7f\xe1\xd6\xa7?\xff\xb1\x9e\xe7\x95\x00V\x0c\x81j\xbf\xe7\xfc\xc9C\x86\xa1\xa7o+&amp;\x85%\xb8\x86\xc1H&lt;\x12\x1f\x06p\x1dq\xe8\xf0]\xcd\xf6|`uvA\xb5\xebi\xda\x81}\xe3\x19b\x84\xdeQN\xa6\xa4J\xf2h\xb5a\xdb\x0e\xf4\x9d\x03\xe7PJ\xd2\x0b\xc9\xd9~\x0f\xdd@\x1a,^K\x8a$Rd\x02\xe1\x1a\xb2\xe4\x90\xd0hbS\xf3\x85O\x1d\xf3\x0b\x9f8!M5w\xef\xaey\xf2\xfe9\xbb\x10\x11\xbdgb,\xc7\xf3\t\xa7uG\xed=\xedfK3\x8c\xfc\xfc\x9f\xfa\xe9\x9f\xe2\xeej\xc5\x8f\xee\xde\x1fg \x83D+\xc5\xcd\xc397\x973\xea\xcd\x9a\xd5\xc59\xeb]\x85\x9e;\xd4\xa2\xa4\x13\x19\x9a\x84~\xe8\xe8\xba\x9e|\x12\xd1\xd1\x13\xba\x1a|\x8f\x8c\x9e\xe0&lt;ZJ\x84\xd4\xa4V\xb1\xcc\x13\xde\xfd\xe1\x9b$O\xeesppLy|\x82\xdf\xae8{\xfb{\xdc\xfa\xd4O\x7f\xac^\xebc\x07V\x8c\x91\xd5\xe9\x13\xfe\xce\xff\xe3\xd7\xf8W\xff\xeboc\xcb\x14=\x99\x83\x92\x84\xa7\xfa\xc5!\xe2\x83D\xc9\x80V\x00\x81\xa6\xafi\xda=}7\xd0T{\xfa\xaeCjO\x82c\x9ejH\x13\x86\xb6f_\x8f\x87\xa2\x15\x1cN2n\x1c\x1d\xb0\xb98\xa7\xeb\x03\xc1C\xd3;\x16\xb9&amp;\xb7\x8eBDd9a\xbb\xe99,\r/\x1d\xcc\xb86\x9d\xa1\xb2\x9cb\xf2"\x8f\x87\x1fq\xf7\x9d\xfb\\\x0c\x82\xe5\xe2\x80\xe7\x8f\xb64\x8fO\x89\xde\x93[\xc3L\x054\x03\xed\x93G\x94\xce\xf3\xc6$\'d\x19\xc2\x07\xd2D\x92M\x147\xaf\x1f2\x7f\xe3e\x86zC\xb7]\x83\x0bdYN\xdd{b3\xea5\xe8$%\</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>786600</v>
+        <v>785466</v>
       </c>
       <c r="B12" t="n">
-        <v>2020</v>
+        <v>1981</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Juan Pablo Vojvoda</t>
-        </is>
+          <t>Luis Zubeldia</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x01\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x05\x06\x07\t\x03\x04\n\x02\x01\xff\xc4\x00E\x10\x00\x01\x02\x05\x03\x02\x03\x04\x07\x05\x05\x06\x07\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x11\x07\x12!\x081\x13"A\t\x14Qa\x15#2Bq\x81\x91\n3R\xa1\xb1\x16b\xd1\xe1\xf0\x17$%cr\xc1\x184Cs\x92\xa2\xa3\xff\xc4\x00\x1b\x01\x01\x00\x02\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x02\x03\x04\x01\x07\xff\xc4\x005\x11\x00\x01\x03\x02\x04\x04\x03\x07\x04\x01\x05\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x13AQq"a\x81\x06\x14#2B\xa1\xb1\x91\xc1\xd1\xe1\xf0\x1534Rb\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xdf\xe4 \x89\x08"B\x08\x91\x84z\xae\xeb\xf7\xa7\x0e\x8f)[\xb56\xf1C\xd5w\x07\xfb\xad\xbdNR]\x9b_\xcdI\xcf\xd5\xa7\xfb\xcb#&gt;\x99\x87t\x00\xb8\xd8(qR\xfd\xa2j%6o\xe9\x19\x9e\x9cf\x13H\n\xda\xa9\xa6\xeeF\xd6\xf0\xc98&gt;\x18k\x9f\xc3=\xf8\xf9\xc7\xedw\xdb\xbb\xa6\xb7\xdeE\xb57R\xa1$\x02\xb7\x938\xc8PCc\x8c\'\xc3X**9\x03\xcc\x07\x1e\x981\xebd\x8dl0\xbdR\xec?n\x1a)\x95F\xd9\xaeV\xdc\x9a\x93\xf7\xa2\x02\xdc\x97\xcaV\x8cq\x9d\xc3p$\xfan \x0fX\x9a\xfd0\xf5\xf1\xa0\xfdM\xc9\xb5\'m\\\xec\xcbV\x14\x9f=.h\xecqD\x0eJ3\xc2\xc7\xaf\x94\x9c\x0eN#\x0e#\\l\x17\xae\x85\xcdm\xd6q\x04\x1eD#%\xa9!\x04HA\x12\x10D\x84\x11!\x04H\xb2\xf5\xcf^t\xbf\xa7[\nkQ\xb5^\xe6f\x9bO\x97I\xda\x16\xe2C\x93\x0b\xf4m\xb0H\xca\x8f\xe2\x00\xeeH\x1c\xc1\x16\x9f\xfa\xfb\xfd\xa0\xedy\xb9X\x9c\xb1zw\xb7?\xb2\xb4\xf9\xa0P\xc4\xec\xb2\x94\xba\x92\xd0A\xf3)\xc3\x80\xce{\x84\xa1!\x7f\xde=\xa3V\x97E\xf1\xa9Z\xa7]z\xe9\xbf/\n\xe3\xd3\xaf\xcc\x15\xccLNoq9\'\xed)\\\xf3\x9fR2}cK\x9f\x9b\xb2\xeal|=9\xab\xce\xcd\x93\xbb\x1e\xa2\xccJ\xda\x92sO8\xac\xb17\xe0+ps)\xfb@\xfd\x92A\xe4\x1f\xbd\xc0\xf8\x88\xa7\xd6m\x1dp\xb6d&amp;f\x9d\xa5\xcd7+!\x95\x02\xac\xa4,\x9e@&lt;gq9?\x1e\xc0c\x88\xe7t\xf1\xb5\xd9I]\xcc\xa4\x99\xcc\xcc\x02\xb6\xd3u\xdc\x89e\xb7\xaaw,\xc4\xa4\xf3\x89!\xb9v\xe6\xc2=pq\xc8=\xf3\xc0\x04|\x8fs\x7fh\x8fWZ\x9b\xa37L\xbb\x95J\x9c\xcba\x99\x84\x96f\xfd\xe06\xeb.$\xf0A\x189\xed\xdf\x07\xf0\x8d\x9b\xea\x16\x9f\x94\xd9\xcbx\xbe\xcc/k\xcd\x9f\xd4+T\xbd\x17\xd6{\x81\x89{\xa1\xd6\xd2\xd5&amp;\xb0\xa5\x80\xcd[\x03\x1b\x16{!\xff\x00\xd0/\xe0\x0f\x11?c{\x1d\x99\xb7\\2\xc7\xc3}\x92\x11\x9a\xd6\x90\x82$ \x89\x08"B\x08\xba\xf5\t\xe9:L\x93\xd5*\x8c\xca\x19\x97\x97mN&lt;\xeb\x8a\xc2P\x902I&gt;\x80\x08\xf3\xf5\xedR\xf6\x87T\xfa\xa8\xea9\xc4\xd3j\x0e&amp;\xdd\xa6\xbcdmZ^\xfe\x03AXT\xca\x93\xea\xb7\x143\xdb \x04\x8e\xe0F\x99]f\xdb\xaa\xe8\xa6m\xdf\x98\xf2QI6\xad{X\xf5\r\xbd4\xb2JW8\xeb\x84\xd6j\xca\x04\x86\x87\x7f\t\xbc\xf00&gt;\xd2\x8f\xa9\x00p9\x9b\x1d3\xfb/tv\x8bNj\xa1v[\x8eU\xa7\x94\x8c\xaeje\xe5%\'#\x9e\x01\xe7\xf9D\x0e#\\\xe8\xc8\x89\x9e\xaa\xd9\x84\xe1\xcc\x91\xa6i=\x14\xa2\xb0\xba=\xd1\xda\x13)\x97\xa4Xr2\xa8iAIKr\xe3\xcd\xb7\xb0$\xf2y\xf9\xff\x00X\xaa\xdd}$iE\xdd$\xec\x84\xcd\x95\'\xe1\xb9\xf6\x99-\xe0+\x8d\xb9\xfd?\xd7\xc2\x1f\x89#\xf5\xba\x9eccn\x96X\x13X\xbd\x98\x1d=\xd5\x8b\x93\x12\x96C4\xb7\x81\xc3/\xc8\xb7\xb5M\xfc\xc0\xecq\xfc\xff\x00H\x80=jt5|\xf4\xdf\xba\xe9C\x8eW\xed\x97\x1c\x1f\xf1\x06R\xa4\xbd&amp;&gt;i\x1eR\x9f\xcb\xd3\xb4HP\xd7\xc9\x1c\xc1\x8f7\x07N\xca3\x13\xc3b\x96\x13,b\xc4k\xddX\x1a?uW\xed\xf7\x91$\xc4\xfb\x8c\xb7\xb9\x0f\xc8MK\xa8\xe1\x0e\xa7\x94\xa8`\xfa\xe3\xd0\xfd\xde=\x0cz\x1c\xf67\xf5\xff\x00\xff\x00\x8c\xed\x01U\xad~U\x12\xe5\xf5f6\xd4\xb5l\xa9\xcc\xaez\\\xe5-M\xfc\xc9\xda\xa4,\xff\x00\x12B\x8e\n\xf0,\x90\x9b8\x85M\xa9g\xc3\x07\xa2\x98\xf0\x8e\x85\xc4\x90\x82$ \x89\x08"B\x08\xa0\xef\xb7\x83\xad\xc9&gt;\x92\xfa&lt;\x9a\xb5h\xd5U3q\xdfK\\\x84\x9aY?X\xdc\x9aFf\x1c\x1f\x0c\x82\x96\xc1\xff\x00\x9b\x91\xc8\x8f:\xb6\xed\xddT\xb8\xef\xb6\xaa\x93\xc4\xa6f\xa15\xb9\xc5\x14\xe7cc\x84\xa0g\xe2;\xff\x00\xd2\x07\xacsL~\xcb\xb6\x95\x9by\x95;}\x9f\xba&amp;\xc5\x1eq7mJOt\xc5A\xc2\xf2\x94\xa4\xf6\n%_\xe5\x1b\x0f\xb1eed\xa5P\x95yF\xdf\xe1\xef\x14\xa9\xdf\xc5\x9d\xce\xf3_C\x86&gt;\r;Z:,\x95F\x94mr\xe9q\x94}\xac\x0c|Dw\xd9\xa55\xb9\xc4:&gt;\xf6J\x87\xa4tF\xd6\xd9i\xcdb\xad\xab\xd6\x98\xdb\xcd)\x94ms\xd3j\x87\xca0F\xbdi]&amp;\xe6\xb0*V\xf5ZA/I\xce\xb2\xb6\xdcB\x93\x9d\x99\x1d\xc6\x7f\x18\xe4&amp;\xd2\xae\xa6\xbb3r\xadBW\xedU\xd8UJ\x95\xbe\xf9@r\x8f\\\\\x9e\xd5p\xa7\x02\x1cJ\x9a ~\n\xcf\xe0\x93\x12s\xd9\x1d\xd4\\\xff\x00L\x1e\xd2{&amp;J\xa1Y\xf7z\x1d\xd50\x8a,\xe2\xd4p\x95\xb3:\x02[K\x9f$\xbeZV{\x05\'\xd4\x1e-\xf4\xd2f\r=U\x16\xb20\xdc\xcd\xe8\xbd\x19B$\x94*B\x08\x90\x82$ \x89\x08"\xf3\xf5\xfbIZ\xb3U\xbd\xba\xbc\x9e\xb5\xa6\x16\xafr\xb6i\xd2\xb2\x12\xad-@\x84\x02\x82\xeb\x8a\x00v\xdcT?/\xcb\x1a\xe8\xd0ySwk\x0c\x8d,\xa9KO\x8c\x0b\xdbO\tH?\xeb\xe6NLpT;\xe1\xb8\xf7R\xd4M\xf8\xb1\x8e\xb6[f\xe9\xacIS(r2Jkk\xa9\x96I\xed\xc9\x1d\xb1\xf2\xc4J\xad?\x95z\xa7.\x94\xaa]_=\xca\x19\x8aa\xf9\x95\xfd\x87\xc3u\x94\xa8\xa8\x12L\xb6\xca\x92\xa0\x94\x8e#\x91\xfa\x92\x9aqIm\xad\xc1C\x8f/\xacuf\xca\xc0\xb8\xbeg*=e\xf5%\xe5x\xcc\xabiOt\xf6\x11f\xdf\x12\xcc\xcdS\\Z[J\x9b(;\xb0\x9e\xfcw\x8e2n\xe5\xb9\xbe\x15\xa6\x1e\xa9\xa7\xa86\xe7P\xf7r\xab,\xa3\xc2n\xec\x96h6U\xf6\x92\x1bQ?\xa8H\xcf\xaf1e_Z\x95/#\xaa\x94\xeb\xae\x86\xde\xcf\xa2\xdea\xd9`\x9e\x14\x92\xda\xf2\x8c~\x87\xfa\xfc"\xd9F&gt;\x13\x0f\x92\xa9\xd7\x1f\x8e\xf1\xe6\xbd^Xw]&gt;\xfc\xb2(\xd7\xc5(\xff\x00\xba\xd6iR\xf3\xd2\xff\x00\xfbn\xb6\x97\x13\xfc\x94"\xaf\x12\xe3e]HG\xa8\x90\x82$ \x89\x08"\xf3\x8b\xfbA4\x19\xfaO\\W\xc4\x84\xe2\x92\x95L\xad5&amp;R\xa5rZ2\xdeQ\xfa\xb5\xf9g\x88\x87=\x16R\x9d\x9a\xbf\x9f\xaa\xa1\xa4\xab\xc1N\xdd\xdby\xc0\xc19\xfd\x7f(\x8d\xa9\xff\x00a\xe3\xcf\xf7St?\xf2c&gt;C\xf0\xb6;\xa6\x9a\xd1\xa4\x1an\xa6j\x17\xbd\xeb*\xca\x99@G\x99\xc2\x12\xdey\xef\x8c\x1f\xc63\xbe\x81{@:\\\xbc\xab\xbf\xd9\xab_U$U4\xa76%\xb9\xac\xb6\x95\xab\xe0\x85,\x00\xaf\xca+-\xa7\x90\xb0\xb8\r\x95\xbf\xde\xa3k\x83\t\xddJ\t+\xde\x91U\xa5\xb2\xfc\xa8\n\n\xc7\xd9Vs\xc7x\xa5\xdf:\xd5\xa6\xbaaBr\xbb}\xddRt\xb96\xd2J\x9e\x9cx#\x9f\x96O\'\xe5\xde\r{\\\xe0\x17\x8e\x19\x05\xd6(\x93\xf6\x8f\xf4\x8dx\xcc\xfd\x19mjT\xbc\xe3\xc5[S\xe1\xa4\x84\x95v\xfbG\x03\xf9\xc7~\xaf\xa9\xd6\xac\xfd5U\x0br\xae\xcb\xed\xb8\x8c\xb9/\xe3\'pOn\x06y\x8duP\xe4;X\xaf!\x93\x884\xd9i\'\xdai9R\xa5\xf5CtJ\xb8\xa5!\xb9\x8a\x94\xb4\xe2N\xdcg\xea\x823\xf9\x9c\xc61\xa9UC\xaf\xcb\xce4\xf6\xf2\xa4\x00\\\x1cy\x8a\xc9O\xea\t\xf5\xe3\xf4\x8b=\x07\x8a\x9a3\xe5\xfc*\xa6 r\xd5&lt;\x1e\xab\xd6g@\x15\x06j}\x0e\xe9\x14\xd4\xab\xeau\xb1\xa74v\xd2\xea\xb3\x95\x84J6\x8d\xdc\xf6\xce\xdc\xe3\xd3\xb4f\x08\x95PI\x08"B\x08\x90\x82$ \x8bC\x1f\xb4\xb5\xa4\x17-\xad\xd6L\xa6\xa9;KS\xf4\xbb\x9e\xd7\x96D\xac\xc6\xdf/\x8c\xd2&amp;\x10\xb6\xbed\x04\x02~\x01i\xcfq\x10\xfb\xa2=\x1f2\xdaSv_3\x85M\xaab\xa4\x99\nz{\xabnR\xb5+\xe3\xf6J~\x11\x1bU\xe0\x8d\xe4\xf7S4&gt;9c\x03\xb7\xe1|j5"\xd5E\xcb1K\xbc.I\xe9\xa9YfP\xb4\xd3h\xf2~\xf0\xfe\xd3\xdd^`R\x902\x07%#\'\x93\xe9\x15;;\xa5\xeb\x12\xfd\x93\x17\xae\x8eW\xabn%\x01\x9d\xaa\xad\xc9\xa5\xa4\xa1\xc5\xb7\xbd-\xf8\x88*B\\\x1c\xa4\xb6V\x15\xb8\x10\x07\x11\n\xd7M\xc1\xcf\xa0\x1d9\xf7V\xa6\xb6\x8d\xd2\xf0\x889\xfa\xf2\xed\xfes[\x18\xf6V\xea5\xd5\xa9:h\xed\xbby\xcc8g\xed\xf9\xb7$\xe6P\xf1%G\t\x1bU\xcf&lt;p#\x1a\xfb@t\xdeoP5\x0eb\x97R\\\xf4\xf5&gt;\x96\xc6\xe7\x94\x82|6\xd6\xad\xd8O\x1d\xb8\x07\xe2O\x03\xd6#\x1c]\x1b\xae\xd2\xbb\xe0\x8d\xb2\xc9\x91\xc1E_\xf6y\xd3\xb6\x96^)\xb1\xee\x8d+\xbc\xd3V\x9b\xf7s.dT\xe9*.\x80P\xa4\x810\x83\x80\x1426\x127\xa7\x83\x93\x89\x1d\xd35"m\xc7&amp;\xa4\xe87\xbb\xd5jk\x13\x05\x96\xdb\xa8K\xf83r\x8b\x1fqC\x08R\xb1\xc0\xe5 \xfe=\xceu-\x98F$q\x06\xff\x00o"\xb2\xa7\x92\x8eg:(\xdaF^|\x8f\x9a\xc5~\xd6~\x8f*\xf7E\xa5+\xaf6\xe4\x92\\\x9e\xa2\xcb\x86\xab2\xed\xa7\x97\xa5\xca\x94|A\xff\x00N\x7fB\xaex\x11\x0cza\xd3\x89\xbd_\xd4\t;\x17\xdc\x1bK*}\nyN+\xcc\x94\'\x95\x14\xf23\x81\x9c\xfa\x88\x9d\xc2f\xcdI\xaf\xd2\xaax\xcc\x04T\x82&gt;\xa1\xfd/]Zej\xdb\xf6\x1e\x9dPl{Q\r&amp;\x99F\xa3J\xc8\xd3\xd2\xc2@@e\xa6\x92\x84`\x0e\xc3h\x11^\x89\xf5WHA\x12\x10D\x84\x11!\x04X\x1b\xda\'\xd2V\x9au\x83\xd3\x1d\xc3a\xdf\xf4%?3!O~z\x83?.\xa0\x89\x89\x19\xc6\xdb*B\xdbQ\x1d\x8e6\xa8vRTG\xc0\x8d4\xf4\xad\xa1(\x95\xb2g\x8dV\xaa\x87\x9b\x93\xbb\x9d\x91\x98\x95h\xfdR\x16\x1bk\xcd\xdf\xbf\xa7\xe5\x11x\xa0\xbd1\xec\xa6\xb0g\xe5\x9d\xbd\xff\x00*\xb97\xd2$\xf4\x9d\xe359Ey\x96|m\xc8_\xbco\xda\xf2\x0f\xc0\xa7\x90H\x1f1\x19&gt;\x81\xd3\xdd\xddB\xb6}\xe6\xa59\'+\'.\x85-I\xf74\xb8\x94\x809\x00/\xbf\xc3\x18\x03\xe3\x15a#\xdc\xdb_@\xafLtc\x96\xa7oUzt\x17K\x93\xa4\\\xb7w\xb9\x15;\xe3\xd4\x94\xea\x9dQ\xf3/ \r\xdf\xcb1~]\xfaS9~\xceVM\x0ey,\xcc\xcd;\x94\x87\x10\x95y\x93\x94\x85\x0c\x83\x85\x10H\xcf\xa8\xe3\xd64\x9e]\xd6A\xb95X\xe5\xae\x93o\xbamM\x99{\x96\x8d#7\xb4\x80\xcdAL\xfdj\x12\x07\x01+(*F=6,v\xf8\x1cFQ\xb14J\xdf\xb4\xe9\xc52rm%j{\xc5x%\xbc\xeeW\xc4\x1cg\xfds\x1e\xcd\x9d\xb6k\xb6\x1b,x\xb1j\xe8\xc6\xfb\xacw\xd5\xa4\xd5-\x8d&gt;\xafS\xd7\xb0\xb6\xe5\x1ea%+\xf5\xfa\xb5\x7f\x90\x88\xf3\xec\x84\xe8r\xd5\xacjM\'Tn\x8bVFzZbk\xdd\xe4\xb7\xa4/\xde\xb7L\x00[X\xf8l\xe0\xe7\x93\x93\xe9\x1d\xb4R9\x90Xs (\xca\xb8Z\xf9\x03\x8f\xd2\xd2V\xf7\xed+B\xd8\xb1\xa8\x8d\xdb\xf6\x8d\x12^\x9f$\xd9%\xb9Yf\xf6\xa1$\xf7\xc0\x8a\xa4]\x06\xcb\xe7\xc9\x08\xf5\x12\x10D\x84\x11!\x04V\xde\xb03qL\xe95\xd1-i7\xbe\xaa\xe5\xbb:\x9ab?\x8a`\xb0\xbf\x0c\x7f\xf2\xc4h?\xa3+\x82\xb5k[\xb7\x85\x95v\x0578\xf5k\xdf\xe5\xc3\xa9 \x9d\xa7\xc3R\xc7\xf7s\xb4\x0f\\\x85q\xc4F\xd7\xea2\x9d\x88?\xb2\x9a\xc2Z\xdc\x85\xdc\xc3\x87\xe8\xa5\xe6\x90T\x1a\xa9S\x12\xfdUl\xb8\xe2prR&lt;\xbf\x9cT\xb5\xbe\xe6\x91\xa4\xd8\xd3\x8d+\xcc\x1cg\tKj\x03r\x95\xc0\x1f\xa9\x8an\xa3E\x7f\x8d\x8d\xb0!S\xba\x0e\xb6\xa7\x98\x95\xac\xd6*!;\xd4\xa5\xa1\x97\x11\xd8\xed\xe31\x91\xe9\xf5\xb4P\xaaO;&gt;\xef\x84\xcaf\x88[\x81&lt;\x9f\xf2\xe62{l\xdd\x17\xa3\xc4-\xd9d*%\xd3C\xa8J%\xda}Q/2\xbeS\xe6\xe3\xf0\x11A\xbf*l\xd3%\x1c\x9e\x96}(\xfe \x9f\x87\xc6&lt;\x95\xcd\x921c\xb2\xd2\xd8r\xbc\xdc(\x9d\xd4+s:\xbfr\xcb\xe9\x9d&gt;{\xc1n\xa5:\xd4\xbb\xce\x14\xf0\xa6wx\x8e\x8c\x9e\xd9BH\xcf\xf7\xa2V\xf4c\xa6v6\x9a_\x16\xa5\x85eS&lt;\x16S0\x87\x12\x95$\xfd\xa6\xdaZ\xca\x86y\xc6\xcc\x0c\xf0&gt;\xcf\xc6:\xe8\xc5\xdd\x1bOP~\xe1pU\xf8a\x94\xff\x00\xe4\xfe.\xa7\x84"\xee6_:HG\xa8\x90\x82$ \x89\x03\xdb\x98"\xf9\xe0\x8d\xa0g\xe3\x1aG\xf6\x87h5s\xa5\x9e\xaa\xea&amp;\x8fmO\xca\xdbs\xc2a\xea;\xde\xee\xaf\x01\xc6\\\xfa\xf2\x94/\x84\xa8\xa0\x92\x9d\xb9\xc8\xd9\xda8\xab\x19\x99\xad&gt;\x7f\x95#\x86J\x1a\xe74\x9d\xc7\xdc\x15\xd1\xd0\x9dU\x99\x9e\x93)\xa7\xbf\xb9\x95\xe0\x00\x95v\x8b\x9f\xaa\x8a\x951\x9d \x99D\xf5\xcc\xa9z\x84\xc3[\xa5|\x17&gt;\xb1\x05&gt;l\x80~\x04E\x1eF\xb9\xd5\x99\x07U\xf4h\xa6k)\x1a\xee\xa1G\xce\x8f\xbd\xa3\xda\x9b\xa5\xf4\xa9\xed:\xb8,\xda\xc4\xdc\xe4\xa4\xf3\x8eI\xd4e\xe4T\x130\xc6\x0e\xfc\xfc\x08\xf9\xf1\x8f\x80\x89A\xd3\xee\xb9\xde\x9a\x8fp\xfd3~\xd6\xa4QIu\x1e*d[\x92;\xc9Y;\x03\x8e(\xf7\x1c\x1c\x04\x8c\xe4\x1e\xd1\xdd=&gt;Rln\x17&lt;\x15\x8d{\x07\x86\xceY\x1ab\x8b5C\xaa\xbbY\xb0n\x04LS^\xcb\x8eK\xa5\xcf\xdc\xab\xe29\xc6\xdf\xe9\x9f\x87o\x9b\xee\xe6\xa9\xc9[NM\xd7\x1e\xf0\xd1\xb7*\xfa\xcd\xbf\xce"\x06x\xdf\x91w\xbaV\xbe\x1c\xdf\xaa\xc3\xb6m\xcff\xd0uF\x9f}\xea\x9d\xc2\xcd6\x94\xc4\xc6\xe9\x89\xa9\xcc!\xb9t\xac\xf8`\xac\x9cq\xb8\xa59&lt;dF\xc7\xba2\xd3iy\xf9u\xeb$\xf1\x0e\xa5\xfd\xcc\xd0\xdcB|\xae\xb3\xb4$\xcc\x05}\xe0FR\x9fLn&lt;\xee\x11b\xc2\xe9\xdc\xfa\x96\x924\x03\xf0\xaa\xb8\xb5Cc\xa2p\x07Wi\xfa\xee\xa4\'hE\xb1R\xd2\x10D\x84\x11!\x04HA\x17\xc8&gt;\\\xfa\xe20\x97\xb4SNe5/\xa2\xdd@\xa0\xbfJD\xe3\xb2\xd4\x17\'\xe5R\xa4eHr\\\x87\xb7\'\xe0v\xa1C\x8fBGc\x88\xc5\xc33HYFr\xbc\x1f5\xa6\x0e\x98\xaa,T/G\xed\x17f\xfc?xP\\\xa9J\xfb\x02T\x12\x07\xc3\xb0\xf9\xf3\x15M|\x93\xd4\x8b\x0e\xbbE\xad\xd3\xb4\xf2\xa1p!\xc7\xbc\x19\x89\x92\xe0S\x12\xabZ\x80\xf1\x1eF\xed\xfb\x00=\xc08\x03\x98\xa3\xc8\xdc\xb5\xe5\xbb]}\x1e\x96\xf2\xd2\xb3\x9d\xba,\xe5\xa3==u\x01{\xda\x12\xb7\x1c\xbe\x9ci\xcc\xe3\x13\x89e\xe6\xdd\x97\x9cPp\x87;\x92\xa4#\x903\xb8\x82TH\xce&gt;\x11\x91n\xad\x0b\xd5\xed&amp;\xa79T\x9e\xb2t\xff\x00\xdd\xc9[{\x9b\xaa-\x97\x1e\xc3[\xc9N\xe4g\xb20\x07*\xe0z\x08\xdd\xee\xf3;q\xb7\x9a\xf3\xfdK\x0f.\xc8\x1a\xeb\x9d4\x00\xf4VF\x8aU\xab\xda\x81?/r\xd5\xb4\xb2\xb1j6\xc4\xc2\x9b\x94fnq\nm\xf0{\x90\xda\t\xc2\t\xfe \x92b\xaf\xd4=j\x96\xea\x1a\xb4\xa6\xd0\x14\xdbm\xa8\xcc)*\xfd\xd19\x08\xcf\xc7?&gt;3\x88\x8bp\xcdSn\x8b\xad\xed0\xc6\xe0\xa2\x07Y\xf7\xc5&gt;j\xcd\xab\xdam\xcb\xadr\x8d{\xb3.\xbc\xca\xbb\xa7\xdeXRy\xf8`\xfa\xff\x00#\x1bw\xf6*\xea4\x8e\xa4{3\xb4\xb6zN\xa4\x99\x95\xd2\xe8\xcb\xa6L8\x9c\xf0XyiH9\xfb\xde\x1f\x87\x9f\x991q\xc2[\x96/\xf3\xc9Q\xf1\xaf\x14\x80\xf4\nU\xc2%\xd4"B\x08\x90\x82$ \x89\x08"GZ\xa7M\x92\xac\xd3f)\x15ID=-2\xca\x99\x98e\xc4\xe5.!C\nI\x1e\xa0\x82D\x11h\x17\xad\xbd\x05\xbf\xba\x04\xea\xa6b\xcf\xa9\x95\xb7Eri\xca\x95\x97Ro\xca\xdb\xf4\xf2\xe1\xc2\x00\x1f}\xb2\xaf\r@\xf3\x94\x820\x08\x8c\xb4/i\xcb\xd6\x8c\xc4\xc4\xba\xc2\\\x98\x93J\xdbQ\xfb*\xc8\x19\x1f\x81\x8a^/\x1b\xa9\xeb\x04\x81}\x0b\xd9\xf9\x9b5=\xb9\x85\xc5lj}\x1e\xc0i\xc6\xee*ze\xdcX\xde\xa5J\xbd\xe1&lt;\xbc\x0c\x02FF\xe0\x07\xaf\xca2\xcd\x9b~HjJ\x12\xe4\xb0S\xcd\xee\xfd\xeb\xeaS\xa7\xbe;\xab9?\x87\x1cF\x97U;\x85\x9a\xdf}\x14\xf3\xa4\xa5\xe2fh\xf1\xf6\x17\xfdU\xd7R\xab\xb5F\xa5\xbdT\x9c^\xd9y\x16\xd4\xe2\x95\xdbq\x03\x93\xf9\x0fO\x9cD~\xa259\xaa\xcb/V\x84\xcb\x8c\xbfRPJ[[\xbb\n\x14\xda\xc0g\x1c\x8c\x90W\xc79$q\xf2\xe1\xa1i\x92\xa4\x13\xd5pW\xbb$\x07\xb2\xaft\x97\xd21\xeaRVV\xcf\xd5\xfa\xdc\xd5\r\x9b\xaeiS2o\x04\x8f\x12QR\xe9\\\xd3\x01~ \xfb%\xd4 \x91\xc7\x90\x90\x08\xceF\xd1\xbd\x9c\xdd7\xcat\xc7\xd3\xfb\xf6\x9c\x85,\xc8\xcb\xd6\xae)\xaa\xd4\xbc\x8a\x90P\xa6P\xf2[H\xca\x0f\xee\xca\xbc=\xfb8\xda\x16\x01\t \x81s\xc3\x1c\xd9#s\x87\xfd\x88\xfb\x05F\xc5\xc3\x98\xf64\xf4\x07\xee\xb3\xf4"UC\xa4 \x89\x08"B\x08\x90\x82$ \x8b[\xbf\xb4\x9d\xa7\xa9\xb8zc\xb3\xef\xbfv\x05T{\x91\xe9`\xf6\xde[/\xb1\xb8\x1f\xff\x00\x03\xf8F\xb9\xfa\x19\xd7\x94\xae]\xebF\xf3K\x85\xea9\xcb\xce-\xe2\xe6\xd6F\x00P\x1f\xc2G&lt;`\x1c\xe7\xf1\x83\xc6!\xf7\x88\x1c\xd1\xb8\xb1V,\x0e\x7fw\x99\x87\x91\xb8*W}\x0b\xa5z\xa50\xa6\x9f\x90\x97\x98K-\x856\xa5\xa5`\x9c\xa7\x80pRH!]\xb3\xdb\x9cv1\x90\xb4\xfeV\xc7\xd3\xfa\x1bs\x16\xb5\x05\x0c\xca\'z\x14\x94\xa8\xe58V8\xc9\xe7\x9f\x9cV8r{\xbeB\xae\xc5\xf0\xe6\xbd\xd6/\xeb\xc7\xa8i\x1d0\xd2\xdf\x16\x8e\xa4\xa95gP\xd0y*#jwy\x860{\x0c~\xaa\xe0q\x9c)\xd1\xb6\x99\\\xfd\\\xeaT\xbe\xaa\xde\xb4\x157l\xd0\xd3\xe2J\xcb\xb8\x92R\xf2\xce\xcd\x819\xe3f\x12\x01\xc7~O\xa8\x8e\xa8)\x9dKLe;\xf2\xf5\xb2\x87\xa8\xabmMO\x08l-\x7fE\'\xf5\xc1\xfb\xc6\xd4\xa3\xceOi\xa5k\xe8\xaa\xdc\xa4\xa3\xce\xd1g\x99e\'\xdd\xa6\x12\xda\xfc5\x94\xa8\x14\xf79\xc1\x04`\x01\xf2\x8bw\xd8\xd7\xed\xb8\xeaKT\xb5\xe6W\xa7N\xb9.Yz\x87\xd3\xf3K\xa6\xd1\xaa\xcf\xd3\x18\x95\x98\x91\xa9%e-\xb0\xe1e\x08J\xd2\xe1\x05\xbeRT\x16Q\xce\t\x8b\x1f\xb2\xcdmE&lt;\xd1[\xc4&lt;C\xf7P&gt;\xd31\xcc\x92)y\x11b\xb7\x11\x08\x96U\xd4\x84\x11!\x04HA\x12\x10D\x84\x11C\xbfnP\xb2\xe6z\x07\xabS.z\xc4\xb4\xbc\xf4\xd5vE6\xf3\x0f\xab\n\x9b\x9b\nQSH\xf8\xab\xdd\xc4\xc2\xbf\x04\x18\xd0\xde\x9f\\\x13\x96-jbmi\x99S\x8dJ\xa9+e\n\xdb\xef,n\x04\xb0\xa3\xe9\xe6\x03\xcc\x06\xe1\xe8DG\xd4\xbb\x87;o\xb1\nZ\x8d\xae}1\xcb\xb87\x1feR\x9b\xf6\x80Wt\xeebb\x9c\xdc\x9c\xe3\xf2o\xeem\x97\xd2\xd9HCx8\xdcrNFF\tV@\xda=8\xb9\xad\x0fi]\xc9w\xcc\xa6\x89N\xa1\xce\xaa_\xc6\xca~\xde\x0f\xc9\x018\xe5J\xf9\xf2V\xac\xf78\xe1~\x1e\xdc\xc5\xd9\xb4Rq\xe2\x92p\xc32\x92me\x94(z1\xaa]i\xd7\xa9\xb4\xbb\xbaI\x14{ZNx8\xc6\xe9E6\xad\xa1\x05)&lt;\xf9\xb0\xa0\xa06\xa8\xe7\x9c\xe0v\x89\xf9\xa7\xf6\x1d\xb9\xa3\x96|\xb5\x9bdRee\xa5\xe5\xdb\xd8\xf3\x8d\'\nR\xb0&lt;\xd99\xcf\x9b$\xa8\xf7\x88\x8a\xfa\xa6L\xe1\x1c\x7f+T\x8d\x05,\x917&lt;\x9f1\xd4\xac;\xd6v\xaf[zA\xa5\xd5k\xda\xb55\xf5\x89d\xb5%.\xa5y\x9f\x98X\xc2[O\xcb\x9f\xc9&lt;\xfa\x18\xd5U6\xee\xafI\\_\xda\xe6\xaaO7QT\xf7\xbe{\xd3nmq\x0fo\xdf\xbd$r\x08W \xfab.\x1e\xc3\xd2Z9\'#r\x1a=5?\x90\xa0}\xad\xa9\x0e1\xc29\x0b\x9f]\x97\xa1?eo\xb5/N\xfa\xd5\xd1\x89J&gt;\xa3]4\xdaF\xa1\xd0R\xc4\x95vFrq\xb6~\x94Y\x04"j\\(\x8d\xfe&amp;\xd3\xb9\t\xe5\x0b\xc8\xc6\xd5 \x99\x91\xf8\xc7eT\x0e\xa7\x9d\xcc&gt;\x9d\x95~\x198\x91\x82\x90\x8d\x0bbB\x08\x90\x82$ \x89\x03\xc8\xc4\x11i7\xf6\xa9\xfa\x84\xac\xdb:\xd7\xa2\x9a}K\xab\x9f\xa3\xed\xb4\xbf_\xa9\xcbK\xbc\x0e][\xed\xb7\x87\x12\x0eA\x0c\xb6\xbcg\xd1\xe3\x8e\xf1\x08\xea\xf6zk\xb3?\xda\x0b}\xa4&lt;\x95$:\xce\xd5d8\x83\xc9\x00\xfc\xc7\xf4\x88\xfck\xe0\xb6\x17\xf9\x1f\xcd\xd4\xce\x07\xf1\x84\x8c\xf3T\x9b\'D\xa9w\xc5E\xc0\xa6K\xc1\xee\x1eJ[#\x03\xf2\x1d\xc1\x891\xd3\x97EV\x95\xb9Sf}\xaaKIK\xc8\xc8s\xc3\xce\x0e{n#\x82LV\xe7\x9aG]\xb7\xd1Y)\xe0\x8d\xa4&gt;\xda\xa9\x93g\xc8I\xdb\x14\xd4\xd3\xa9r\x9eT\xa5I\xf2\xa0rr=~?\xeb\x88\xfc\xd4\xddK\xb5\xb4r\xc8\x9c\xbco\xea\xec\xbd&gt;F\x9f-\xbebi\xe2|\xa3\x9f(\xe4\xe5J&lt;%#$\x9c\x0ex\x11\x1f\x14N\x96@\xc6\x0b\x92l\x17s\xe4lq\x978\xe8\x05\xca\xd4\xcfW\xbdY\\\x9dM\xea\x13\x97\x04\xe3oIPdVZ\xb7\xe8\xee9\x95!\xbe\xde+\x9f\x17\x15\xdc\xf7\xda\x0e\x01&lt;\x93\x8a\xa5^u\xc5x\xcb\xfb]\xc0\x8f\xb7aTm\xa0\xa1d\x03\x90\xd7\xcc\xee~\xeb\xe5X\x85S\xab*])\xe6t\xed\xcb\xec\xbb5Z\xe5VBO\xc5\xa3N\xf83-\xa9.%\xe4\xe7\xc8A\xf2\x9e&gt;\'\x88\xdco\xb3\x0b\xdb\xc1H\xa2i}\xb5\xa2\xfda\xcb\xcf8\xe5&gt;Y2l\xdfr\xf9yE\t8G\xbd\xb5\x92\xb3\xb58\x1e"\n\x94@\x19I9Q\xd9]F\xea\xd8\xf2\xb7q\xa8\xfe=W4R\x88M\xcf5\xb4\xdb\x0fP\xac}P\xb6e\xef-8\xbb\xe9\xd5\xcaL\xdawK\xd4)\x93hy\xa5\x8f\x86\xe4\x93\xc8\xf5\x07\x90x8\x8a\xdf\xc8\x08\xa8\xb9\xaek\x8bH\xb1\nH\x10\xe1p\xbfa\x05\xeaB\x08\x90\x82(\xc5\xd5G\xb5\xdb\xa1^\x90\xae\x89\xad&gt;\xd4\xbdX3\xd74\x9bjT\xcd\xbdm\xc8\xaeva\x95\x01\x90\xdb\x8aN\x1aig\xf8V\xb4\x91\x9c\x90\x071\xa9\xbfi\x7f\xb7\xdf\xa8.\xa7-\x99{\x07\xa7d\xd4\xf4\xda\xdd\x98[\xaa\x9a]6\xa8~\x91\xa85\xbbk~+\xe8\tS);I-\xb6G\xda\xc2\x94\xb1\x88\x99\xa1\xc3\x9cH\x96N\xe0\x7f+\x8eY\xeer7\xd4\xadcU\xef\xeb\xce\xfe\xbd*\x0c\xdfW\\\xfdjje\xb5L95S\x99[\xcb[\x83\x03\x1b\x96I9NrI\xee\x04H\xae\x875B\x9f5W\x93\xd3[\x92h)\xa5\x1d\x94\xf7\x1cY\xf2\xf1\xfb\xb3\xf1\xe3\xb7\xf8\xc7\x07\xb4\x14n\xab\xa0s\x9b\xbb5\xf4\xe6\xa5\xb0\x1a\xa6\xd3W\xb5\xa7gi\xfc)]\xa5\xdagm\xdb\xb7\xfc\xdf\x8d\xb9\x90\xa9\xaf\x11(\xdb\x94\xad\xb3\xc8P\x11),j]\xb5Im\x97dT\xa7\x94\xe1\'\xcc\xa1\xfe\xb1\x1f3s\x88_DkCE\x82\xef\xdf\xfa\x87dim\x9bR\xd4\x9d@\xad\xb7N\xa4S\x18\xf1\x1e\x98u]\x8eF\x10\x94\xe3*Y8\x01 \x12N\x00\x19\xc4j\xa3\xac&gt;\xb2/.\xaa\xaf/{\x98i\xcau\xb3$\xf1\x14:\x19s\x9f_\xaf{\x1c)\xd23\xfd\xd4\x03\x81\x9c\x95*\xdd\xec~\x1d\xef\x15\x06\xa9\xe3F\xed\xdf\xfa\x1f\x95X\xf6\x9a\xbb\x83\x10\xa7a\xd5\xdb\xf6\xfe\xd6\x1bbUO;\xe2\xba\x95(\xab\x90\x0f\xfd\xa2\xa0\x95\xb3(\xd9[\xee\xf7\xfb\xb8\xe4\xfe\x1f\xd2&gt;\x9c\xd5B:\xec\xa9\xf3O:\xf3B\\}\xa9\x89\xc4%^n\xd89\xc7\xe5\x88\xc9\x12\x0f\tvX\x93\x97G\x97f\x16\xa1\xf7x\x8d\xb1|\xcb\\\x9f*\xcc],\xf5\x9f\xaf\xdd"\xde\xc9\xbb\xf4N\xfe\x98\xa7\xa9KO\xd2\x14\xd7\x15\xe2I\xce\xa4}\xd7\x99\'j\xc7\xcf\x85\'&gt;R\x0f1\xb8.\x86}\xb6Z\x01\xd4\xd7\xb9X\x9a\xc2\xa9{\x16\xf1\x98\xda\x86\xd34\xf7\xfc6}\xc3\xe8\xd3\xca\xfd\xd2\x89\xff\x00\xd3s\x1d\xc0\x0bY1\x17\x8ba\xfcf\xf1\xa3\x1e!\xbf\x98\xfeB\xddK?\r\xd9\x1d\xb1Sx\x10\xa1\x90a\x15E(\xbeA)\xf4\x8c\x0f\xad\x1e\xd3N\x86\xfaz\xd4g\xb4\x97Wu\xfa\x9fK\xaf\xca\xa1+\x9b\x90n\x9f73\xee\xd9\x00\x84\xb8\xb6\x1aZP\xac\x10v\xa8\x83\x8fH\xdb\x05&lt;\xb5\x0f\xcb\x18\xb9Z\xe4\x91\x91\x8b\xb8\xac\x11\xd4\x17\xed\x05\xf4G\xa4\x12\xbe\r\x80\xd5z\xf8\x9e[EL7N\x912r\xf9\xc7\x1b\xd73\xb5i\x07\xe2\x1bW\x1c\xfe:\xce\xebc\xdb7\xd5\xdfTRSV\xac\xcd\xecmj\x14\xd3\x84\xbbA\xb6\\T\xbbIo\xee\xb4\xe3\xa0\xf8\x8f\x1c`\xa8\xa9[I\xec\x84\x81\x16\x1a\x0c\'\x82\xee$\xda\x9eC\xa7\x7f5\xc1-W\x10ef\xca\x14\\u\xd9\x82\xd3\x93*\x98q\xc9\x89\xac\x82\xe2\xdc$\xab\'\xd7\xf11\xd4\xa9!3\x87h?T\xdba\xb4\x1e\xdb\xb01\x12\xce\xf9\xac\xb45X\x95\x1ajd+?L\xa0\x0cnRs\xf1\xe3\x98HTfhUV\xea\xd4I\x87\x1bR\x16\x14\x14\x85`\x83\x9e\xfcv?8\x8fs\x06b\xd5\xd4\xc7[P\xa7/J\x1dd\xdaw\xec\xbc\x85\x95\xacs\xe8\x93\xac3\xb5\xb9\x1a\xf3\xb8KSI\xf4C\xca\xe3\xc3X\xfe3\xe5P\xef\x83\xf6\xa46\xa4\xf55\xa5\xfd:\xd2\x93;q]\x0c\xcdL%\xcc\xcb\xd2i\xb3\tze\xec\x0e@O\xdd\x1f\xdeQ\t\xf9\xc7\xcc\xb1,\x02\xa9\x98\xa7\x06\x16\xdd\xaf\xd5\xa7\x90\x1c\xef\xdb\xf0\xbe\x87C\x8dS\xbf\x0e\xe2\xca\xedZ,G2y[\xbf\xf2\xa0\xafT\xbd`jgS\xb7\x0bj\xaf\xbe\xb9:&lt;\x8b\xa5t\x9bv]\xc2\xa6YQ\xe3\xc5p\xf1\xe2\xbaG\x1b\x88\x00\x02B@\x04\xe7\x18\xcb\xd3g\xa6\x9d\xf1gS\xb7\x9c\xeeW\xf4\x8f\xa4\xe1\x94,\xa0\xa4l\x11\xec7=O2\xa8U\xd5o\xab\xa8t\xaf\xe7\xcb\xa0\xe4\x17iU\x06)\xc0\xcb4B\xd4\xa1\x8e#\xe6\x86]\xaaV\x92\x1dI\xda\xd7\x9b\x18\xef\xc7\xf4\xf8~\xb1%\xf5\x00\xb8\xb5\xdd~\xcc\xcb\x84\xdd2\xac%&gt;_\x11K\xe0\x13\xdb\x03\xd7\xf1\x8b\xdef\xa2\x8a\\\xbeV\x9fO\xd27G\xcd`\xfdl\xa84\xca\xb5TT\xcb\xedL\xab\nQ\xdc\x95r?C\x17}\x06\xedh:\x118&lt;5g\x85\xa7\xb7\xf8\x8f\xe7\x19F\xe3\xcdb\xf6\xdfe&gt;\xfa\x11\xf6\xd6k/K\x16\x8b\x96\x0e\xa8\xc9\x1b\xe2\xdaf](\xa15=RSs2\n\x04y\x10\xfe\xc7\n\x9a\xdb\x91\xe1\xa8\x1d\xa4\'iH\xcaJ"&amp;\xc0\xe1\x9aR\xf0\xeb_\x95\xbf\xb5\xb9\x95o\x0c\x0bh&gt;\xd0&gt;\xbd\xf4\xcf\xa0\xed\x1fr\xf4\xba\x94\x99\xda\xf5I.5m\xd0[X\x0eM:\x07./\xf8ZA \xa9_0\x06I\x8f9Z\x9d\xa95\x8b\xabQ\xe6\xaf\x9b\x82m\xc9\xd9\xea\xa5ES33O\xb8V\xa7\x9cqE\xc2\xa5\x13\xdf\'?\xacj\xc1a1\xc2e?V\xdd\x82\xd9V\xec\xf2e\x1c\x95\x8f3p\xceT\xebjy\xe9\x958\xe1sz\x9c\'&lt;\xff\x00\xaeb\x9dX\x9cu\xe54\xd8QW\x8c\xf6\xd4\xe7\xe0;\xc4\xc1v\xeb\x94\x05D\x9a\x99r~\xb6\xdc\x93J\xfb\xdb\xbf\x04\x8e\xdf\xe3\x1d\xaa\xc4\xca\xe5\xddE1\x90\x06\xe4\xe1Q\xaf\xa9[\x07%H\xaa\xca\xb4\xe4\xcc\xbb\x19\x1bR\xe1G?4\x9f\xf0\x8br\xb8Y\xb7\xf2\xa9\xb7\xfc\xb9\xf2\'\xef(\xfc\x00\x8eY\xbc#1[c\xd7EZjn\xef\xb7-\x96n\x04S\\T\xb3\x8c\xa1\xc2\xdb{H\x05_\x13\xf9\x80c\xa2\xbb\x9fQ\xa7\x1c5\xe9\tfP\xb4\xe4*U\xf4\x9d\x8e\xa4\x1e\xdf\x8f\xc1C\xf9\x88\xc4\xba|\xa04y\xac\xc7\x0c\x9b\xaa\xbc\x8e\xa5K\xf8Iv\xbfA\x9a\xa6\xbd\xf7\xbcIr\xea3\xf2Z\x01\xfe`Gm\x9b\xd6\x81S\xc3m\xdc\x92\'\xfeY\x9aHW\xe8NDmeL{;C\xd0\xadf7r\xd4.\xe56\x9f\xf4\x91\xf7\xf4\x84\xa9\x94\x8f+\x89\xec\xbf\xc3\xe5\xf3\xf5\xfc1\x9a\xd5\xa0\x84=V\x9au)\xc8H\t\xdd\x9ec\xa6&gt;G\xaa\xc1\xdb\xaf\xc7\x92\x95\xde\x8c\xb6\x13\xcb,\xe7?\x8a\xb1\x9f\xe5\x1d\xeb\xa6o\tn]\'\xedv\x8d\x83F\x95\x88\xdc.)\x12\x9f\xdd\xb6Rx\xf3\x18\xa9I\xb8\xdc\x93~\xf8\xf2\xd3\xdb\x03q\xe4\x9ex\x10^9}\xaa\xe2\x12\xe0.re\xc6w\x8c\xa1\x0c\x8c\xa8\x8f\x89\xc7\xa4#\xce"eY\xef\xdaI\xd5\xed\xeb\xd5\xd7PU\x9dI\xb9\x96\xfb2n}U\x16\x98\xb72\x99\x194\xe7\xc3dc\x8c\xe3\x95\x11\xddJQ\xf5\x88\xdb%8\xb9\xf9\x1as\xaf}\xa4\xbb\xb0\x9f\xfa\x14R\x0f\xf2\x11\xa26\x08X\xd6\x0eB\xdf\x85\xe6l\xc77UA\xb7\xeaKrr\xa8vy\x99\xe1*\xfcI\x1f\xf6\x8ei\xb7\x0f\xben#\xff\x00/%\xbd?\x8a\x8e#&amp;\xba\xedYlWR\x81.\x87\xae\xb7\xdd\xc2~\xa1\tJw\'\xe5\x1f\x01bv\xe8XX\xfb)\xc0\xcc&gt;\x9fT\xe7\xe8\xa9\xf5J{5\x00\xebo\x82w,\xe3\n)\xc1\xcf|\x88\xe1\x14*{v\xbc\xde\xc9Tn\xdaRW\x8eO\x1f\x18\xd6ck\x9eI\xe8\xb3k\x8eP\xaeJ#\x93,PYo\xc6\xcbR\xb2\xed\xa4#\xe3\x91\x1fr\x88\xfaJ\xa1\xb5\xe09\xcaS\xf2\xc0\xff\x001\xfaF\xf0,\xd0\x16\xbf\xa9t\x13*\x12\xf1h\x84\x94\xee\xe0\x11\x1c\xb7}\n\x891I\x97\x9az\x96\xc2\x96\x926\xa9L$\x91\xf9\xc6\x01\x8dp7Ygpp\xb2\xaeR\x1aJ-\x9d\xc9\x03\xf7y\xed\x1cv\n\x81zh\xa8v*\x07\x1e\xb1\xb5\xbb\xb59\x15\xc1\xe2\xa9\xcb\xd2h\xa9G\xea\xe5P\x91\xff\x00\xd8\xc75q\xc7\x9cq\x95-@\xf9c\x11\xf2\x1e\xeb\xce~\x8b\x9eAL\xb3N\x98\xaa&lt;\x95\x14K\xa7r\xd2\x8f\xb4\xbc\x08\xe3ni\xe7\xda\x15\xa9\xd4$\xadg\x0c6\x92v\xb61\x9cz\x7f\x9f\xca0\xcc\xbdUj|\x93l\x85=1\xf5\xae\xac\'z\xd5\xeb\xc4#p\x1a-k\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>787598</v>
+        <v>786600</v>
       </c>
       <c r="B13" t="n">
-        <v>5926</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Renato Portaluppi</t>
-        </is>
+          <t>Juan Pablo Vojvoda</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00\xbcExif\x00\x00II*\x00\x08\x00\x00\x00\x06\x00\x12\x01\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x1a\x01\x05\x00\x01\x00\x00\x00V\x00\x00\x00\x1b\x01\x05\x00\x01\x00\x00\x00^\x00\x00\x00(\x01\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x13\x02\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00i\x87\x04\x00\x01\x00\x00\x00f\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00\x06\x00\x00\x90\x07\x00\x04\x00\x00\x000210\x01\x91\x07\x00\x04\x00\x00\x00\x01\x02\x03\x00\x00\xa0\x07\x00\x04\x00\x00\x000100\x01\xa0\x03\x00\x01\x00\x00\x00\xff\xff\x00\x00\x02\xa0\x04\x00\x01\x00\x00\x00\x96\x00\x00\x00\x03\xa0\x04\x00\x01\x00\x00\x00\x96\x00\x00\x00\x00\x00\x00\x00\xff\xe1\r\xf2http://ns.adobe.com/xap/1.0/\x00&lt;?xpacket begin=\'\xef\xbb\xbf\' id=\'W5M0MpCehiHzreSzNTczkc9d\'?&gt;\n&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n&lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n  &lt;Attrib:Ads&gt;\n   &lt;rdf:Seq&gt;\n    &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n     &lt;Attrib:Created&gt;2022-04-27&lt;/Attrib:Created&gt;\n     &lt;Attrib:ExtId&gt;b58b6222-e4df-4694-b7a5-ca98bc6db1cd&lt;/Attrib:ExtId&gt;\n     &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n     &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n    &lt;/rdf:li&gt;\n   &lt;/rdf:Seq&gt;\n  &lt;/Attrib:Ads&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n  &lt;dc:title&gt;\n   &lt;rdf:Alt&gt;\n    &lt;rdf:li xml:lang=\'x-default\'&gt;jogadores sofa&lt;/rdf:li&gt;\n   &lt;/rdf:Alt&gt;\n  &lt;/dc:title&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n  &lt;pdf:Author&gt;Guilherme Mirra&lt;/pdf:Author&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n  &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n &lt;/rdf:Description&gt;\n&lt;/rdf:RDF&gt;\n&lt;/x:xmpmeta&gt;\n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n&lt;?xpacket end=\'w\'?&gt;\xff\xdb\x00C\x00\x06\x04\x05\x06\x05\x04\x06\x06\x05\x06\x07\x07\x06\x08\n\x10\n\n\t\t\n\x14\x0e\x0f\x0c\x10\x17\x14\x18\x18\x17\x14\x16\x16\x1a\x1d%\x1f\x1a\x1b#\x1c\x16\x16 , #&amp;\')*)\x19\x1f-0-(0%()(\xff\xdb\x00C\x01\x07\x07\x07\n\x08\n\x13\n\n\x13(\x1a\x16\x1a((((((((((((((((((((((((((((((((((((((((((((((((((\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfa\xa6\x8a(\xa0\x02\x8a(\xa0\x02\x8a+\x0b\xc7\x1e$\xb7\xf0\x97\x85\xefu\xab\xc8\xdeX\xad\x94\x1d\x89\xd5\x89 \x01\x9e\xdc\x9a\x00\xbd\xadk\x1a~\x89b\xf7\x9a\xad\xdcV\xb6\xeb\xd5\xe48\xc9\xf4\x03\xa9&gt;\xc2\xbc\xb3\xc5?\x1d4\xbb8e_\ri\xd7Z\xbc\xea\x0e\x1f\x1eT@\xfa\xe4\xf2\x7f\x01^\x11\xe2\x1f\x17\xeb?\x10u\xc7\x96\xf9\xa4H\x04\x84\xc7\x18\xc8H\xe3\xec\xaa=\xfb\x9e\xa6\xb2\xe5\xb6\xbayp\xb1\x11\x12\x13\x85&lt;.\x01\xfa\x1a\x97+\x17\x18\\\xeau\xaf\x8f\x1e;y~\xf5\xb6\x9c\xa4\xeeUK`G\xfb\xa4\xb6jo\x0f~\xd1^)\xd3\xa7U\xd6!\xb3\xd4\xe1nNS\xca\x7f\xc1\x97\x8f\xd2\xb8\xeb\xc8^\xe6\xcdc\xbb\x0e\xa0\x1c\xee\xda\x1c{\n\xcc\xb9\x16\xd1\xb7\xd9\xcc)1\x03\xbb\xaa\x91\xed\xc0\xe3\xf3\xa1J\xfb\r\xc2\xdb\x9fY|:\xf8\xcb\xa1\xf8\xbeqi&lt;o\xa5\xdf1\xc4i;\x02\x92{\x06\xf5\xf65\xea\x03\x9a\xfc\xf2\x1al\xc5\x83\xd8\xc8b\xc9\xe6\'9\x1cz\x1f\xf1\xafy\xf8\x1f\xf1F\xf3L\x9e\x1f\x0f\xf8\xb2\xe4\xc9j@Kk\x86\xf9\x8cd\x9e\x15\x9b\xa9^z\xf6\xa7rZ&gt;\x94\xa2\x81\xcd\x14\xc9\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n\xf0\x1f\xda\x1f\xc4?n\xd4 \xf0\xf5\xac\x86H\xad\xd4Mq\x08\xe0&lt;\xa4\x8f,\x1f`2\xdf\x88\xf4\xaf~\xaf\x915i\x05\xff\x00\x8d\xbcC\x7f1c+\xde\xca\x00=\xb6\xb1Q\xfa\x01QR\\\xb1\xb9\xa5(\xf3J\xc4:&amp;\x9c\xf0\x9c\xbb\x06c\xc1\xc7\xf4\xae\x86\xdbN@\x80\x04\xf7\xe9U\xb4\xf023\xc7\xf3\xae\x8e\xdaE\xd829\xf7\xaf.Srz\xb3\xd8\x8c#\x05\xa23$\xd1`\x9d@t\x19\xc7\x04qX\xf7\xbe\x0b\xb7\x96O51\x1c\x80cr\xae3\xf5\xf5\xae\xd0:\x9c\xe3n=s\xd2\xa2\x9eP\x01 \x12(Rq\xd9\x89\xc5Kty\xee\xa3\xe1\x81\xe4\xed,\x0b\x0e\xa5&gt;\\\xd7#y\xa3If\x03\xa0-\xb4\x93\xb5\x9b\xa1\xf5\x07\xd2\xbd^\xeeM\xc3\xda\xb05(\x92D*Td\x8cV\x90\xad$\xc8\xa9B-l{W\xec\xfd\xe2\xf7\xf1?\x83\x9a\xde\xf2\x7f:\xff\x00M\x93\xc8w\'\x97O\xe0o\xcb#\xf0\xafP\xaf\x96\x7ff\xbb\xd3\xa4|I\xbf\xd2\xd80\x8bQ\xb6m\xa0\xf4\xdf\x19\xdd\xfc\x8bW\xd4\xd5\xe9\'us\xc8\x92\xb3\xb0QE\x14\xc4\x14QE\x00\x14QE\x00\x14QE\x00\x14QE\x00\x15\xf2%\xf4F/\x10j\x83\x9f\xf8\xfa\x97\xbf\xfd4j\xfa\xee\xbeT\xf1\xbc\x7f`\xf1w\x89\x15F\xe7\x8a\xe9\xdc)\xee\x0f\xcc?\x98\xac\xaa\xab\xc4\xda\x83\xb4\x87i\x89\x9f\x99\xb2\x10\x1c\x82\x07z\xe8\xadR&amp;\x18\xdd\x9f\xf8\x10\xaf\x17\xd4n\xb5feO\xb5\x18\xdaL\xb2\xa2\xf3\xc7\xd3\xd2\xa9\xe83]\xb5\xd1x\xb5\t.Y0H\x0cW\x15\xc7\xec\x15\xafs\xbf\xdb\xbb\xda\xc7\xd0\x1fe\x03\x9e\xc7\xa5Gv\x96\xf6\xd1&lt;\xb7\x12*\x81\xdc\x9c\xe2\xb1&lt;#\xaa\xbd\xfc\x08\x92\x1f\xb8zV_\x8d\xaf&amp;C\xe4B2\xeep\x01\x19\xac\x92W\xb1\xa5\xe5a/\xbca\xa1y\xcd\x00\xbaFe\xe0\x8d\xb8\xac\x87\xd5\xac\xaff)k(\xc1\xe4n\xe2\xb8\xaf\x12\xd9\x1d*;k\x8b\xa8\xf7\x9b\x95g\x8c\xb0\x03\x858\xcfN\xfe\x95~\xc42O\xf6+\x98\xc0-\x18\x99\x1c\x0cd\x11\xfa\x1a\xe8t\xa2\x95\xcc\x15Y7\xcbs\xb5\xf01kO\x8a\xfe\x19\x9f$o\xb9\xf2\xc8\xf6e+\xfdk\xebz\xf9\x1b\xc3\r\x8f\x18xVw*\x02\xddDK\x93\x800\xdc\x92M}M\xa5k\xfa^\xadsqo\xa6\xdfCq5\xb9\xfd\xe2\xa1\xce=\xfd\xc7\xb8\xae\x9arV\xb1\xc7V.\xf74\xe8\xa2\x8a\xd4\xc4(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00\xa5\xae]\xb6\x9f\xa2\xdf\xdeF\x03=\xbc\x12J\xa0\xf4%T\x91\xfc\xab\xe5\xbdv\xf2O\x10kwZ\xbb\xaa+^\xdb\x03 \x8c\x10\x0b*\x81\x9c\x1e\x9c\x0e\x95\xf5.\xb7\x01\xba\xd1\xaf\xed\xd7\x1b\xa5\x82H\xc6zd\xa9\x15\xf2\xd7\x93%\xab$l\xa3\xcb1\xedc\xe8{\x0f\xd2\xb9\xab\xc9\xa6\x91\xd7\x86\x8aqo\xa9\xcfC\xa6\xb4WOx\xca\xcf\xe6Fb`{)\xea=EK\xa0\xe9\x16zR]\x1bXg\x7f8lr\xe7\xa2\x83\x90\xa3#\xd6\xbb+HVDP\x9f\x8e*\xdb[\xa4P\xb1\xd83\x83\xc9\xae?k$\xacw\xfb(\xefc/\xc2\xd0\xf9\x12Kp\xcb\xb1d\'\x81\xd8Su\xf8\x9aK\xb1,\\\xbac\xa8\xea\r^\xd2~yUc\xc1@9\xf4\xebL\xd6sot$?q\x86*5\xb9g=yi5\xd4J\x97\x16\xf0\xc8\xaar\xaa\xe9\x9d\xa7\xdb9\xc5$Z?/3\xb030\xc6H\xe7\xf3\xae\xb6\xdc,\xb6\x88\xea\x17\x1bx5V\xf0\x84\x8b\x8f\xa9\xa1\xcd\xbd\x03\x95\x1c\xecp"-\xabH\x01X\xa4!\x81\xaf@\xf8"]|us#\x92ZkG\x1fA\xb9H\xfeU\xc11Y\'X\x9b\x94bI\xf6\xafS\xf8)\x04G\xc4W\xb2\xa1.\xc9k\x82\xd8\xc0\x1b\x98t\xfc\xab\xa2\x9f\xc7\x13\x9a\xa6\x94\xe4{5\x14Q^\x81\xe5\x85\x14Q@\x05\x14Q@\x05\x14Q@\x05\x14Q@\x01\xe4s_4x\xd6\xc9\xb4\xedn\xfe\xd9\x98\x95\x86FUR?\x84|\xca\x7f#_K\xd7;\xe2\x1f\x07\xe8\xfa\xed\xc1\xb9\xbe\xb5\xdds\xb0\xa6\xe1#.\xee8\xc8\x07\x9cVUi\xf3\xa5cj5}\x9bw\xeax.\x97p\x8a\x98S\xc1\xabw\x92\xf9\xb6\xd2"\xb1\x07a\xe75\x83b\x92C~\xd0\x13\x82\xa4\xab\x0fB8\xfe\x94Ks 8\xdcIo\xe1^\xf5\xe7\xba~\xf1\xe9\xc6\xa7\xbbq\xf6\x1a\xe7\xd9\xe5e\x92\xd1\xa3\x8f\x18\xde\x06\xe1\xf8\xe3\xa5;X\xd7M\xe3!\x8a\r\xf8\x00\x1c\xa9\x00\x7f\xf5\xfd\x85%\x9cP\x82\xd9\x9a\x08\xe4\xea\x03I\x83\xf8\xf6\xa7\xca\x11b\xda\xd2\xdby\x99\xe0\x17\x00\x9fZ\xd3\x966#\x9aw\xbd\x8bZt\x8e4\xe5s\x802~_\xee\x8a\xcf\xbf\x96L\x9f\x98l\xeb\xc1\xedP$\xec\x93\x14R\xdbs\xf2\xe0\xe7"\x9fr\x1d\xad\xd7\xa0!\xc8\xe9\xd0c8\xac\xdc,\xcbU.\x88\xf4\x9b\x1b\xcdSQh\xec-\xa7\xb9u\\\xb2\xc5\x19|/L\x90;s\x8a\xf7\xbf\x85^\x1d\xba\xd2,\xee\xef5(L7We@\x89\xb1\x94E\x07\x19\xc7BI&lt;}+\x95\xfd\x9fl\xf3&gt;\xb5z{yp\x8f\xd5\x8f\xf4\xafe\xae\xeaT\xd2\xb4\x8f&gt;\xb5V\xef\x00\xa2\x8a+s\x98(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00\xf9\xaf\xc7V-\xa2|A\xd4\x93\x81\x0c\x92}\xa6?L??\xcf5\x93{\xa6A{\x16~`\xae\x0e6\xb1\x18\xfab\xbb\x7f\x8f\xf6\xdfg\xd7t\xdb\xfd\xbf\xba\x92\xdd\xa3\x93?\xec\xb7_\xfcxW\r\xa5\xdd\x07_-\x8f\xdd\xe3&gt;\xb5\xc3UZN\xc7\xa3B^\xea\xb9\x8b\x07\x85\xec#\x99\x9a]B\xe22\x0e\n\xc8\xfc\x0f\xce\xa5\x7f\r\xe9h\xa4\x1b\xf9\xa5 \xe7\x0b7\xf8WT\xda]\xbd\xdb\xaf\x99\xf3\x126\x83\x9c\x1f\xa1\xa6\r\x12\xd6\xd1\xd6X\xd4\xee^r\xd8\xac\xf9\xdd\x8e\xaeg\xe4cXh\x96\x96)\xba(\xff\x00x\xdd\x19\x8eXS\xae]v\x08\xc1\x04.r}\xcd]\xbf\x95 fg\x90d\x0c\x8ek\x02y\xf8\xf2b\x18\x91\xce[\x9f\xba=iF\xefVe6{g\xec\xf7\xce\x89\xab0\x18\x1fj\x03\xf2A^\xaf^_\xf0\x06!\x1f\x86\xaf\xc2\x8c/\xda\xb0?\xef\x81^\xa1^\x85?\x85\x1emUi\xb0\xa2\x8a*\xcc\xc2\x8a(\xa0\x02\x8a(\xa0\x02\x8a(\xa0\x02\x8a(\xa0\x02\xb1|a\xe2m7\xc2:\x05\xc6\xaf\xacH\xe9k\x0e\x06\x11w;\xb18\n\xa3\xb95\xb0\xee\xb1\xa9g`\xaa:\x92p+\xe4\x8f\xda/\xc6\xef\xe2?\x14&gt;\x8fe0m\'Lb\xa3a\xc8\x96l|\xcd\x9e\xf8\xfb\xa3\xf1\xf5\xaa\x84y\x9d\x84\xdd\x8e\xa3\xc6_\x13\xb4/\x88F\xd2\xdfE\xb7\xbdCg\xb9\xe4k\x98\xd5C+``a\x8f\xa5q\x12G.\x8fr&amp;@\xefd\xc7\x9c\x1c\x94\x1e\x9fJ\xce\xf0\xe6\x9baet\xb7Zl7\x10E&lt;{\x02\xcf/\x98\xcd\x8c\x1c\xf4\x18\xae\xceH\x96k\x17\x04|\xd8\xae\n\xd2J\xa3q\xd8\xf4h\xc5\xfb4\x99V\xdb_\xb4H\x95\xe0\x94\x11\x9e\xfdEG7\x88c\xcb4\xb3\x05L`\x02\xdc\n\xabk\xa6i\x97w\x00\xdd[F%=J\xe5I?\x81\x15\xa3\xff\x00\x08\xee\x8d\x03\x87kH\xc9\x1c\xfc\xe4\xbf\xf3\xa8\xbc{\x17iw9\x8b\xfdY\xaf\xe4\tf&lt;\xc5\x04\x92\xf8\xe3\xff\x00\xafZ\x9aN\x9cV&amp;y\x0ednr\xd5j\xee8\x8c\xa8\xb1\xc6\x88\xa3\x80\x14\x7f*\xd80yV\xeaH\xc7\xd7\xe9\xe9\xe9JR\xba\xd0\xa8G[\xb3G\xc0?\x13-|\x1b\xad\xc1\xa1\xea\xd6\xdb4\xcb\xe72\x1b\xed\xc7\xf7/\xc2\x80F&gt;\xef\x03\'\xb6s_FF\xeb"+\xa3\x06F\x19\x04\x1c\x82=k\xe2\xbf\x1b@\xb2i\xc4\x9f\xbf\x19\xde\t\xfd\x7f\x9dn|)\xf8\xd3\x7f\xe1;\x11\xa4\xeav\xed\xa9\xe9\xf1\xff\x00\xa8\x1ef\xd9!\x1f\xdd\x04\xe4\x15\xf4\x07\xa5w\xe1\xa2\xeaAr\xeey\xf8\x9fv\xa6\xbdO\xaeh\xaf2\xf0\xe7\xc6\xdf\x07\xea\xf3\xad\xbd\xc5\xd4\xda]\xc1\xe0\x0b\xd4\xd8\x84\xff\x00\xbe\t_\xcc\x8a\xf4\x9by\xe2\xb9\x85&amp;\xb7\x95%\x85\xc6U\xd1\x83+\x0fPG\x06\xad\xa6\x8c\x9a\xb3\xb3$\xa2\x8a)\x00QE\x14\x00QX^+\xf1f\x8b\xe1K!s\xae\xdf\xc5l\xad\x9d\x88~g\x90\xfa*\x8eM|\xf3\xe3\xff\x00\x8f\x1a\xae\xab\xe6\xda\xf8Z6\xd2\xec\x8f\xcan[\x06\xe1\xc7\xb7d\xfc2}\xc5\\`\xe5\xb0\x9c\x92=\xfb\xc5\xfe8\xf0\xf7\x84\xa1\xdd\xad\xea1C)\x19Ku\xf9\xe5\x7f\xa2\x0e\x7f\x13\x81^%\xe2\xbf\x8f\xfa\x9d\xd9x|\'\xa5\x8bX\xfa\x0b\x9b\xa1\xbd\xfe\xa1G\xca?\x12k\xc4\x1e\xe2k\x8b\x87\x9egi\xaed9i$&amp;Gc\xeaX\xd7\xa1\xf8_\xe1F\xbd\xad,W\x1a\xa4\xab\xa6\xd9\xbe\x08\x12\xe5\xa5+\xea\x13\xa0\xfc\x7f*\xddR\x8c\x15\xe4g\xce\xdb\xd0\xe3\xb5\xaf\x12\xeb\xda\xdc\xcf6\xb7\xaa\xdd^H\x0f\xca\xb2I\x94S\xec\xa3\xe5\x1f\x95sHw\x1eq\x9a\xf6\xdf\x8a\xbf\x0f\xf4\xff\x00\x0fxF\xc6\xe7D\x85\xc8\xb7\x97m\xd4\xaer\xf2\x06\xc6\x18\xfb\x021\xf8\xd7\x88)\xdb!\x1e\x84\x8a\xd6\x16p\xba\xef\xfeC\xab\xf6W\x97\xea\xcfB\xd1\x1aI\xad,\xe6\xfe\x18\xe2U\x1f\xd6\xbbm&lt;\x07\x8c\x0c\n\xe5&gt;\x1f\xdcY\xdc\xe8\xefc4\xd1\xa5\xda91\xa3\x1c\x17S\xceG\xd0\xe4~U\xd5Z\xa9\x86m\x87\xa1\xaf\x0e\xbc\x1c&amp;\xd3=Z\x13R\x82h\xa1qj\xd0\xddJ\xa9\x81\x93\x95\xab*g\xb9@\xb2\xc6\xaa\x07\x05\x89\xebZW\xd6\xb8D\x93i#\xbdB\xaf\x02\xf2\xd9\xfaVF\xa5(\xedT\\\xc6\x08\xdd\xb4\xf1\xc5_\xbd\xe9\xdf\xe9\xe9S\xdbFe\x97\xccU\xc2\xa8\xcei\xff\x00g3\xccW&lt;\nLkC\x82\xf1}\xb1\x97G\xb9nA\x8f\xe6\xc8\xfdk\xcbbo\xf4\xb5\xc7\xf7\xab\xdc\xfc{c\xf6/\t\xdf\xddH\xab\x1cn\x828\xcb\x907\xb9`0\xa3\xbe\x06O\x15\xe1Pd\xcb\xb8\x0e\x875\xea\xe0\x13\x8cn\xfb\x9ef6JR\xb2\xectV\x9a=\xfe\xa7\x0c\xd3i\xf6\xb3\\}\x99\x01\x98D7\x15\\\xe0\x12\xbdH\xab\xbe\x1a\xf1^\xb7\xe1\xc9\xb3\xa1\xea\x97V\x0c\x0eZ%l\xc4\xc7\xdd\x0eG\xe9]O\xc1;\xa7\xb7\xf1\xe41\xa6H\x9e)#`\x0e?\x87?\xcdk\xd5|e\xf0\xcbG\xf16\xf9\xd5E\x8e\xa2G\xfa\xf8W\x86?\xed/\x7f\xafZ\xeb\xa9%\n\x92\x83\xda\xff\x00\xf0L\xeaG\x9a0\xa8\xba\xa5\xf8i\xfa\x18&gt;\x16\xfd\xa1/m\xcaC\xe2\xbd).#\xe8nl~V\xfa\x94\'\x07\xf0"\xbd\x9b\xc2~?\xf0\xcf\x8a\xc2.\x8d\xaa\xc1-\xc3\x0c\xfd\x99\xcf\x97(\xff\x00\x80\x1eO\xe1\x9a\xf8\xf3\xc5\xbe\x14\xd5\xfc\'}\xf6}Ip\x8d\x9f*Q\x96\x8eQ\xea\xa7\xd7\xd8\xf3\\\xf2\xc8\xf1\xca\x92\xa11\xc8\x87r\xba\x12\x08&gt;\xa0\xf6\xa8\x95(\xcbX\x99)\xb5\xa3?Ch\xaf\x91|%\xf1\xd3\xc4\xfa\x1d\xa7\xd9\xaf|\x9db%\x18F\xba$H\xbf\xf01\xcb\x0f\xaeO\xbd\x15\x93\xa3"\xf9\xd1\xe7Z\xe6\xb1\xa8k\xda\x94\xda\x86\xafu%\xd5\xe4\xc7-$\x87\xa0\xf4\x03\xa0\x1e\x80qZ\xde\x11\xf0n\xb7\xe2\x86v\xd2-\x94\xc1\x1bl{\x89[lh}3\xdc\xfb\x0c\xd7,\xa1\xa5\x8b(\t9\xc0\x03\xb9\xf4\xaf\xb1&lt;\x07\xa2\x0f\x0e\xf8?J\xd3v\x01$p\x86\x9b\x1d\xe4o\x99\x8f\xe6q\xf8V\xf3\x97"\xd0\xce+\x9bs\x9a\xf0\x07\xc3\x9d\'\xc3e.o\\j\x1a\xa8\xe4M"\xe1"?\xec)\xef\xfe\xd1\xe7\xe9^\x82\xd1\x93\xca\x9c\xd3\x8a\xc6\xff\x00xR\x08\x9d9\x89\xf2=\rs6\xde\xac\xd1+\x19^#\xd3\x97W\xd05-:@7\\@\xe8\xa0\xff\x00{\x1c~\xb8\xaf\x91,\xf4-GU\xd4\x9a\xdfN\xb4y\xa5\x07\x12vX\xc8\xe3,OJ\xfb@\xb0l\t\xd0\xa9\xfe\xf0\xaa6~\x1f\xd3\xad\x1af\xb4\xb6\x89D\xf2\x19\xa4\xda&gt;\xf3\x9e\xa6\xb4\xa7S\x915\xdc$\xb9\x8f\x01_\x85\x12\xae\x99\x03\xff\x00h\x16\xbe\xdd\x96\x11\xa8\x08\xb9\xf4\'\x93\x8f^*-N/\x12xB\x12\xfa\xcc&amp;\xf7M\x8c\x8c\\n\x05\x90v\xc9\x19\xe3\xeb\xf9\xd7\xd1\xad\xa7D\xc8Wb\x85=\x80\xc5g\xeaZ$Z\x86\x9dq\xa7\xdf\x0f2\xdax\xda&amp;$s\xb4\x8c\x11S.Y\xe9 \x8b\x945\x89\xe6\xde\x1c\xd6\xacu\xdd\x1cKg2\xbb!\xc4\x89\x91\xb9&gt;\xa2\xac\x1bF-\x94\x8f\x8f\\W\x87\xcf4\xfe\x06\xd4\xf5=*H\x08\xd5mn\x88\x86\xf5[n\x14\x0e\x84t`\xc3\x07\x9a\xf6\xaf\x01\xf8\xbe\xd3\xc4:\x19\x96TH/ \xf9g\x88\x9e\x14\xf6`\x7f\xbak\x86\xbe\x1d\xd3\xd5lwQ\xaf\xcf\xa3\xdc\xd2\x82$\x86\xdev\x94\xaa\x84RX\x93\x80&gt;\xa6\xb8-S\xe25\x8e\x9c\xcd\x16\x93l\xb7\xd7\x198\x96\\\x88\x94\xfd:\xb7\xe8++\xc5\x9a\xec\x9e+\xd5&amp;\xb2\xb3\xbd\x86\xcbF\x80\xe6Y\xa6\x90"\xbf\xbe:\xb7\xb0\x1fZ\xe7\xac\xfc8u\xcd^+\x1f\x0b\x9b\x9b\xe3\x8f\xde\xcb,B4C\x9e\xb9\xfe\xef\xd7\x9f@k\xa2\x86\x11[\x9af5\xb1/\xe1\x816\xb7\xac\xdd\xf8\xaa\xcaI\xf5mFI\xf5Xe\x1eE\xb1O\x90\xc6F6\xc4\xaa0\x0ez\x8e\xe0U{o\x86\xde+1\xc5q\x0e\x8f=\xcd\xb4\xe8\xb2\xa4\x90\x10\xc0\xa9\x19\xe9\x9c\x83\xed\x8a\xf7\xdf\x87\xff\x00\r,|8\xa2\xe6`.\xf5\x12&gt;i\x9cp\xbe\xca;\x0f\xf3\xed^\x88\x10"\x85P\x00\x03\x18\x03\xa5u:\x8a/C\x93\x96\xfb\x9e\x05\xf0g\xc2\xda\xb5\x97\x8dZ\xebS\xd3\xae\xac\xe2\x82\xdd\xc8i\xe3*\x0b\x1c(\x03?S\xf9W\xbb\xfb\'\xe7R\xec\x07\xaeO\xd4\xd0GaY\xd4\x9b\xa977\xd4\xd6\xfe\xecc\xd9X\xca\xd7tK-wK\x9fO\xd4\xa1\x12\xc1(\xe7\x9c\x15=\x99Ob+\xe5\x8f\x1ex2\xfb\xc1\xda\xb9\xb6\xba\x0f5\xb4\x99k{\x85\xfb\xb2\xaf\xf4a\xdcW\xd7\xa0`{\xd6?\x8b&lt;?g\xe2m\x12}7P_\x92A\x94\x90\x0f\x9a\'\xec\xc3\xdc~\xa3\x8a)\xcf\x95\x91%s\xe3R\t\xfe\x1e~\xb4V\xbf\x88\xf4k\x9f\x0f\xeb7:n\xa2\xbbf\x81\xb6\xe4ta\xd9\x87\xb1\x1c\xd1]fv/|.\xd3#\xd4\xbe#iv\x13\xf3o\xe7\xf9\xcc\xbe\xa1\x01l~8\x15\xf6\x02\x9d\xdc\x9e\xb4Q\\\xd5~"\xe1\xb0\xbeX=)\x0cdt4QY\x14\x00\x91\xd7\x06\x81\x1a\x13\x95\xca\x1f\xf6h\xa2\x98\x0fc$c-\xb5\x97\xf24\xe8\x99%\x1c\x02&gt;\xb4Q@\x1f:\xfe\xd2\xba\r\xbc&gt;#\xb1\xd4T\x00o\xe0"@:\xeeB\x06\xef\xc8\x8f\xca\xbc\x87M\xb9\xb9\xb3{\xa8\xa2\x99\x93zy2\x158\xde\x87\xb1\xfc\xa8\xa2\xba\xa2\xaf\x15s+\xb4\xf4;\x1f\x87^\x08\x7f\x18\xea\x0e\x86\xe9-\xadm\xf9\x94\xe3.G\xa2\x8e\x9f\x9d}5\xe1_\x0ci\xbe\x1d\xd3R\xd3L\x81c\x8f\xab\x1e\xac\xe7\xd5\x8fsE\x15\x9df\xefa\xc0\xdc*\x00\xa4\xc5\x14V\x06\x83\x1a\x90\n(\xa0b\x1aB(\xa2\x90\x1e3\xfbC\xf8uu\r;M\xd4\xed\xd9b\xbb\x8eo\xb33\x1f\xe3B\xac\xc3?B\xa7\xf3\xa2\x8a+X\xc9\xd8\x96\x91\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>787735</v>
+        <v>787598</v>
       </c>
       <c r="B14" t="n">
-        <v>1955</v>
+        <v>5926</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rogério Ceni</t>
-        </is>
+          <t>Renato Portaluppi</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTE\xff\xff\xff\x9c\x9c\x9e\xaf\xae\xb0\xa2\xa1\xa3\x95\x94\x97\xa4\xa3\xa6\x9a\x99\x9c\xb1\xb0\xb2\xad\xac\xad\xa6\xa6\xa8\x9f\x9e\xa2\x95\x95\x99\xa9\xa8\xab\x98\x97\x9b\xff\xfe\xfe\xb4\xb3\xb5\xb6\xb6\xba\x80\\O\xc0\xbf\xc0\x9f\x9c\x9e\x90\x95\x9f\x91\x92\x97{PB\x8c\x8d\x92{WJ\x8b\x92\x9f\xfe\xc0\xab\xba\xb9\xb9\x84aU\xbb\xbb\xbd\x91\x90\x92\xff\xbd\x91\xff\xc3\x98\x82O:\xc7\xc2\xc2{I6\xab\xa9\xac\x95\x99\xa2\xb6\xb6\xb7\xfe\xb7\x88\xb2}u\xb7\x8as\xff\xbf\xa2\xfc\xf9\xf9\xf9\xf4\xf4\xa3\x82ptSG\xfe\xfc\xfc\x8bYI\x8ena\xad\x7fk\xe0\xa7\x8b\xdb\xa1|\xdb\xa3\x88\xd5\xa1\x82\xd1\x9c|pLB\xcb\x97y\x82\x85\x8e\xb5\x97\x81\xa6pk\x8d\x8e\x95\xc5\x91w?I^\xc0\x8e\x7f\xff\xc6\xb5\xda\xa7\x8d\xa7wc\xff\xc6\x9f\xb5\x85n\xb6\x82x\xfa\xbf\x97HRe\xbd\x85y\xe9\xb2\x92\xa3\x8c\x81\xa2\x9f\xa2\xfc\xbc\x8e\x87\x8d\x99\x8e^P\x86UD\xc3\xaa\x9b\xbf\x8eu\xed\xb1\x98pC4\x96te\xe4\xaa\x90\xbe\x8a|\x9a\x9c\xa2\xa5nV\xcb\x99\x84\xd5\xa0\x8a\xe4\xa3w\xc3\x97\x87\xb8\x86z\xaewo\xdf\xaa\x97\xf4\xb7\x9e\x87g[\xf1\xb3\x86\x95f\\e9+\xf2\xea\xe9\x9a{k|^U\xf9\xb8\xa1\xfc\xbb\xa4\xc1\xa1\x89\xc5\x92\x82\xe8\xac\x93\xcf\xb0\x98\xd6\xcc\xc9\xe1\xc4\xb0\xf0\xad\x8b\xdc\xa3\x83\xe0\xd3\xce\xc4\x89zfG@\xff\xca\xa3eOI\x82RC\xca\xaa\x93\xab\x90\x82\xbe\xa4\x94\xdf\xc9\xbd\xff\xc3\xae\xf1\xb5\x93uXP\xa5\x89x}d\\\xdf\x9aq\xf6\xf0\xef\xca\xb1\xa1\xe7\xdd\xdc\x86oe\x97\x80t\xd5\xb5\x9b\x9c\x86|mTLi&gt;2\xd8\xbe\xab\xec\xa2t\xd3\x9a\x84\xba\x9b\x85\xad\x8dy\xf4\xaa}\xd4\xb8\xa3tF6\xad\x85w\xe9\xd7\xd0\xd7\xbf\xb4\x8cvm\xb0\x84pJ+$\xa2xl\xfa\xb4\x94\x90dW\xb7\xa0\x95\xc1\xae\xa6\x9ctg\xb8\x8e~\x9bfR\xf5\xb5\x8dZ2&amp;\\dt\xb2\x91{\xc5\xa5\x8f\xf9\xb2\x85\x7f\x86\x95\xea\xaa\x81\xd9\x9b\x7fy\x7f\x8c\xe6\xac\x8cPXjoZT}jd\xc8\xb8\xb1\xa5\x91\x8a\xee\xa4\x83xK&lt;\xca\x90~\xa0kg\xb4\x9a\x8b\xe9\xc9\xaf\xa8|j\xec\xb5\x9e\xe9\xc0\xa2\xaf\x96\x88\x8c\x8b\x8eO61\xd3\xa5\x96\xba\xa6\x9d\xb4}b\x95oa\x9ck\\\xe5\xaf\x9c\xd6\x8bi\x91|s\xae\x99\x90\xba\x9f\x8e\xa4r]\x96\x98\x9e\xc6\x89n\xcf\xa1\x8e\xde\xb7\x99\xf2\xd7\xbf\xcf\x9f\x83\xf4\xbd\x99\xe2\xa1\x80\xd6\x96u\\E?X&gt;8ta[\xed\xe4\xe3\xc0\x87o\xfd\xb8\x98\xafv[\xe6\xa5\x84\xff\xf5\xec\x81OQ\xeb\xcf\xba\x97`M\x9fp`\xf1\xe1\xda\xb7|p\xff\xc9\xab\xcd\xb6\xa8\xff\xeb\xd2\x88_V\xb9\x82h\xe0\xbf\xa2\xc8\x9b\x8bho\x7f\xfb\xdf\xc3\xd2\xc4\xbf\xd1|_\xff\xce\xad\xc2\xbc\xbb(\x12\x0c\xd0\x93{\x87TV:\x1f\x18\xe5\xb8\xa6\x83}\x7f\xf3\xbd\xa7\xfa\xea\xe0\xbc\xb3\xb1\xf3\xdd\xcevz\x85\x91\x85\x84\xaa\x9e\x9d}qp\xb9YByHJ\xbdiR\x9a\x94\x94\xa1n\xf1\x9a\x00\x00 \x00IDATx\xda\xdc\x96\xefk\x1b\x87\x1d\xc6\xfb\x17hx{\x13B\x88\xf3b\xe0:\xd2\xc5\xa8k\xb7\x86\x03\x93\xcc\xe4E8\xca8gZ\xe8\x12\xa7D+\x96m5\xa7K\x14O\xdc\x9d\x1c\x9f\xe2\xf3\xfd\x10\xe7\x9e"b]b\xf54o \x95\x98!\xe9L\x91\xd2\x1c\x9a\x92b\xe9\x8cg\x15\xc7R\xec\xc6hS\x91R\r\x99\x96\xd0\x81-\x92\xbc\xd8\xbeN\xf7\'\xc8I\xd9#\x90\xe0\xde\xe8s\xcf\xf7\xd7\xf3\xc6\x1b\xff\xbf\xb2\xf4Y\xfa~|PV\xdb\xf0\xf0\x94\xd5f\x05:K\xdf\x8f\x84\xaf\xcf6&lt;\xed\xd9NGj\xb5a\x9b\xd5f\x9b\x9a\xb2\xf5\xbd\xf6\xdaY\xad\xd6G\xd3^\xefv\x1d7\xe5v{gkgkkx\xcaf\x01\xbd&gt;*\xabm\x0b\xb4\xe3\xf5\xce\xce\xfaIB,\xb5\xdb\xb35k_\xdfV\xcd\xf6?Y_\x0f\x94\x15\xa8j5\xaf?"\xfb\xab\xd9\xd5V\xab\nX\x16\xcb\xd6N\rl\xab\xb5gg\xa7\xad\xaf\xd84\xcb\xd4\x14 5\xda\xb3\xdb\xdb\xfemY\xe6d\xc0:Y\x92\xab\xb5=P\xcf\xb6\xbf\xd4\xaa\xca\xfe\xd2lm\xcb\xf6\n\xc1\xfa\x00\xca\xd2h|\x9b\x15\xf1\xa1\xccMT\xcc\xb6Z%\x91"\xc9\x7f\x93\x80\xb2S\xf2\xb7\xfd\xb2L%D\xea^\xab\xed\x1d\xee{e\xfb`Z.\xb5\x1a\xad\x12\x19\xe6\x18\x06E\xe3\xcaj6[\x959&amp;\x12\x0e\x87e9\x025%\x9b\x04E\x84EJ\xcc\xfe\xb1:\xfd\x8a&amp;\xd36\x9d\x05\xaaF)+\xcbL\x06E\x15\xe0JPr$b\xca&amp;\x81su\x99\x14\xe50EQbStS\xf7\xaa\xdf\xde\xf3\x0f[_E\x01k{P\xadv\xbb\x1a\x91\x19#\xc3dB(\x8a\x1a\xf9X\x1a\xe7\xb4\x84\x89\x87e\xb2.\x86\x9bd\x96$\x08\x86k~\xbe\xda$\xd2\xde\xa9\xfd\xee0\xebV\x1b\xa0\x1a;;;\xb3\x9et\x1a\xcfd\xb4&lt;\x86\x19\x98\xa4\xebZ&gt;\xafeL\xbc^\x97q&lt;L\x92PT&amp;\x1f#\x12\t\x82\x0c\xe7\xeb\xfb\xdca6\xb0\xaa\xd5\xd8i\xec\xd4f\xbd\x1e\x98\xc2:S\x04&amp;\x81\x15$L\xd7\x8a\x86\xa1q\xb8\xa1\x15M\xc6dp\xad\x98\xd1LFQ(\xb2*+\xe9i\xeb~\x16\xd0Of\xab{%l\xb4\xc1.\xaf\xb7]\xe5\x18Cb\x05A\x12\x04\x9d\xd6$\x0c\xd7h\xb0\rg4-\x16\x8bi\x19\x8a\xa0(Bl\xdeK(\xdc\xf0\xbe\xd5\xb1o:\x02\xbb\x1cf\xb0\xdah\xd4&lt;\x9e\xefvc\xb8\x1c\xa9g$\xa1\xe0\xe4y\x9e\x8e\x15\x03X\xc64M&amp;\x91\xc7cy\xedy\x1e\xc7\xdd0\x0cC\xf1\xdf_!\xdc\x89\xc8\xd4~\xb5\x95\x17\x0f\x8bD\xb5U*5J\xb1\xe2\xcf\x9e=\x7f\xaeKj!\x93a\x055\x10\xe0SX\xba\x90\x92\x0c%\x1er\xe3\x1c\x17\xe3\xf2\x9ays(\xf1\xe0\xc1\x97\xd4\xea\xaa\xf8\xe5\x80\x8b\x8e\xd8\xf6\x85j*\x8d\xb1\n\xd5\xca6K\xd5&amp;%\xc6\xf2?/Jz\x91\xb5\xf3\x82 \xa8|%\xc5c\x87\x9d/T\x07\xa2\xe0nLb1Z\xc7\xb3\x7fs \xac}N!V\x9bn\xe4\x13\xbb\xe1\xdd\x8f\xf6\xb2n\xb3\x08\xe2&amp;\x1bd\x98H\x10\xa2\x1c\xf9i,\xf6\xddv\x84\xd3P\x8cO\xf1\x85@\x85\xd7\xd5d\x85\x0fQT\xdc&gt;rhd\xc4i\xbf\x9bh\xcaq\xc4\xf5\xc41\xe8v+q\x97\x93\x8f=\xea\xfc8\xf6=*\xba\x90\x13\xe2\xbdfX\xc49\xb2T\xf5{~\x12\xcb\xe7\x8b\x99\x8ca\x84\x04\'\x9f\n\xa4\xb0B0\xc9\xd3\xa602\x99\n\x1c\x0b\x06G\x9c\x08\x91%%\xd5i\x9f\x0b\xa1n\x14\xdeI\xf1w~}Y\xd3#.\x94\xc8fK"c\x18\xb8\xbf\x1a\xd9\xddM\xc7\xf2E:\x03\xe7\'\xc4\xaa\x95dE*\xac\'\xf9\x82\x1aHI\x81\xf1r\xae\xbc&gt;\xe9r\xff\x9a@\xd5\x82\x14\x02\xac8\x12GMj\xb6\xe3e\x1c\x96\x92\xb4\x19.\xb5\xb2\x94\xa9i\xb0\x9e\xf4\xe7\xbbi\x10\x17\x0e\x13\x14x\xa1\xf2)\x81/\xfb\x02\xc9\xa4*U\xca\xb9\\\xae\\\x1e\x1fA\x06\xe3\x06\xa6\x175\xc5\x1dR\xe0D\x85\xe2\\\xad\xd3\xe7yZ\xc5L&amp;\x1cn\x8a\x04\x9e\x87\xbd\xce\xe8\x92\xbe\xeb\xf1x"r\x18\xa6\x93J\xa04\xcccy\xdd\xe7\xab`\xa9u\xf8\t\x06\x83&gt;_\x8a\x160]\x12\xb0\x8c\x12rSD\x02e\x15\xb2\xc39\xc7\xe2ei\x9a\x0e\xb9\xf7\x8eJ\x1e\xd7i\xc6(\xa6c\xbb\xe9\xed\x08pq\x04n\x1a\xb4\x10H\xf9\x00(U)\xfb\xd6\x93\xc9J\xd0\x97\xac\x04$U\xc0\n\x85\x02\xcb\xe0\x0c\x04\n\x02\r%\x1eY:\xdcZlHP\x117!&amp;\x0c\xc90\x0c\x86lDb\xe9m\xbf\xdf\x1f\xa9\xe38\xae\x19j\xca\xe7\xf3\xe5r\xeb\x15_9w;W\x06\xa8J0\xc5J\xa9\x82Z\xc0\x0c\x9ca\x08Ql\x12\x8a\xd2\xd9%a\x99\xa53\x88\xca\x9a\x0c"`\x98N\xe3\xf5j\x89$\x81\xa9\x9e\x8e\xc0\x91\xa9\xa75\xbaPY/\xaf\x03P\x12\xd8r\xdf\x7f\x9f\xf3\xf9\xf8\xca\x88\xa0tM:S)^\x15BT\xf6\x9eH\x88p\x83:\xda\xf0\xd83\x89\x0eI\x18\xc3\xe1\xe9|\x1138\xd8\xf4\x8dl\x04\x14\x83D\x03O${2\xb8\x1e\x1c/\x97\x83\xbe\xdc\xed\xdb\xb9\xdb\xd0f\x01\x95\xb7\xa3\xaeC\x81\x11\xe8\xb3$\x8f\x10d\x13.dG\xed\xeaK\xabj\x81\r\x85\x04=\x16\xd3\xf5g\x92\x01\xa1\x8a\\\rs\x1c\xa7\xb95\xc6\x80d\xc3\xdaG\x0e\x1c\xeb\xea:\xf6\xee\xf8\xb1\xf1\xdb\xc0\xb5&gt;&gt;&gt;Rp9X\xc4\xe5\x9c\x84\xe6\xaf\xb8\x10\xfb\x80\x02}\xaf\x18\xd3\x9d\xeb\xaea\xfd\x05\x86\xb1(-H\xcf\x8a\xff9,I\xa6\x19\x8f\xcf\x0fQJh&gt;\xf3/\xe5\xc2\x9b\xf4\x857\x91\x07O&gt;t8\x1c\xbf\xe9\xea:p`|\xfc\xb7\xeb\xe3\xef\x1e\x9b\x04\xa8^w\xdc\x15\x08\xc0\tp\xb9\\\x88\x0bQ\x12\x0c\xbbm\xed\xdc\xdd)H\xe0\x08\xaa\x14\xf8@\xea\x99\xa4k\x1a\x8b\xcc\xcf\x0f\r\xcd\x9f\xf8h\xe8\xc4\xcd\x0b\'\x86N\x9f\x1a\x18\x18\xf8\xe0\xeb\x0fN}=\xb0\xbc\xfc\xe0\x13\xa7\xb3\xeb\x00\xf0=\xb9{\xeb\x14\x8a"\x81`p}|2\xe0\n\x85\\q7\x15\x8aulG&lt;z\x8eA\xfc\xa4\xcd\x04\xeb\x02\xbf`\xb4\xe8Ph\xbe\xf7\xc4\x89\xd3g\xcf\x9e\xbep\xfa\xa3s\x1fo\xaclll\xac&lt;\xdd\xd3\xca\xc6\xa9\xde9\xc7\x17\xff\xf8p\xf9\xcf\xef/\xdf=u\xeb-(\xa3s\xd2\x97\xf4%\xed\x08\x02\xa7\x1e\x95;\x85e\xf1\x1e\xd6\x05\x163q\x9c\xc35\xe9E%\x18\x98\xeb\x1d\xea\x1f\x1c&lt;~|\xe5\xeag\x9f]}\xba\xb0\xf4\xf0\xe1\xd3\x85w~\xf1\xce_/]z\xbc\xb6\xf0\xf4j\xff7o-\xbf\xff\xd57\xa0\xfb\xbd\xb7\x10\x97\x9d\x7f\xa0\xaa\xa9\xc9\x11\xbb\x03A\x11\x94\xecT\xbe\xb1ztZU\xb1&lt;\x03[Q\x82\xf3r\xcc9w\xf6\xdc\xc7\xbf\xfc\xd5\x95\xc7\x8f\x1f/.&lt;|{amqq\xf1\xd2\x99\x8b\xd7\xce\x9c\x89F/-\xae=\\{\xd8\xbfr\xff\xfe\xc6\xca\xc3\x8d\xfb+\xfd\xbdsv\xa7\x13\xd6\x8a\xc0C\xccA\x91\xf9\x8e\xc5A\xab\'\x8fA\xdc\x83\xa8n2R2\x15\x088.\x9c\xbb\xb2\xb0\xb0\xf6\x87\xee#G\xa2\x8b/u\xf9\xda\xc5Q\xd0\xd8\xd8\xd8\xe8\xe8\xe5\xbd\x07w\xae/\xad,\xad\xc1W\xff\xe0\xddC\x10j\x04\x01\xee\x80\x8bv\xa3\xf1z\xa7\xb0l\x9e"&amp;\x18\xb1&lt;]\xd4\n\x90\xac\x02\xce?\xf5/\xac]_\xec\x01\xaa#\x9b\x00\x11\xbd|\xf1\x1a0\x1d\xdc\xd3\xd8\xc1\xa3\x9b\xd1\xc5O{z\xde\x9bYZ\xba\xbe\xb4\xb4\xb4\xf2\xd5\x17\xff40X\\\xbc@\xa3\x80\x85v\xd0-\xce\xc08\xaeX4\nlF=dw)\xe7\x16\x00f\x0f\xab;\x1a\x8d\x8eF\xf7|\x9a\x988811qr\xe2\xe4\xc1\xa3G\xa3\xdd=G\x8e\xdc\x989\x7f\xfd:\xd8\xb52\xf0\x80\xd5\x84JJ\xb5\xbbP\xc8]\xf3\xfeN-\x08\xeb\xac\\ODp\xbd\x08\xc1\x81F$W\xfc\xef\x8f\x17\xff\x12\x85\x7f~I\x15\x8d\x9e\xd93\n\x88\x0e\x9e\x04\xaa\x93\x13c\xf0h\x8f\xb8\xa7\xe7\xfc\xcc\x8d\x1b\xd7\xdf\x1e\\Fh\xbd\xc0\xf3*\x1bGQWb\xbbS-oy\xe4\x0f\'d\xb3X\x944\x86\xce\xb0t\xe2ww\xa0J\xdd \xb0\xea"|F\xc7^r\xfd\xa0\x83cc\x9b\x9b{\xf5\xed\xee\xb9scff\xe6\xfc\xf1\xde9\x84\x95\x04\x87\xdd\x01\x1d\xefHt.\n\x82]\x04g\xe8\x98\xa4A\x1c\xc5\xa8\xd5k\x9f\xf6t\xbf\x07T\x9b\x9b\x9bc\xa3?\xe8\xbf\xb4\x99\xffO\x13y\x1a\xc7\xef/ \xf1\x97\xfd\xa1!\xe9\xdcO\xf5\xaaUt:U\x02!:\x9du\xb2c&amp;,\xce1\xe4\xfaE\xa67\n+0H[\xac\xd1-#\xe1\xcb\x1dY\xa1\xb6\x04\xfc\x02~K\r\xdbL3\xd9\xf5\xb8*\xb4\x1b\xbbJ\xbbz\xa1\x95i\xefV\xb8&amp;\xac\'\xe4\x80\\\xea\x894\x8d\xfb\x8b1\xf7L\xdd\xfb\x0ff?m\x9a\xc2\xfc0\xaf\xbe\x9f\xf7\xe7\xf9&lt;\xcf3\x150\xddG\xaa\x0e\xb0\xd7\nB \x86\x88\x01\xb8\xcc\x87N\xcc7\x9b\xa0\x93l?p`f\xbe\xb9I\xbb\xd2f\x7f\xdb\xf3u\xe8\x9d\x7f8\xfe\xfdm\xe8\x93{\x12a\x83*\x16\xf8\x1d1\x12F\xe3/T\x1d\x1f\xa9t\x00\n\xb8+F\x02\x01\x8bE\xc0a\xb9\xda\xeb\xcdw\x9a\xfb/\x06\x0f\xec2\x05\xb5\xc4\x02\xb9\xd6\x9f\xfe\xf9\xda58\xa8\x9f\xde\x1fO(`\x1bZ\x8f\x18}\x04\x82\x10\x00\x06P\xf0\xea\xd0UB\xa8;sfzz\x05\xde\xc8\x8a\xde0\rX\xb3R\xfe\xc4\xbc\xa9\xfd\xf8\xc5\xfe\xea}\xcd&amp;S\x93\x86\x95MU\x9b\x1f\x8e\xc1\x1f\x9e\xbe\xbb}\xeb\xeah\x82\xd0\xabj!\x88\xcfG\x10&gt;\xdf\x9a\xba \x84*\x13\xd8^\xa7\xeeDwx6\xe4\x8e\x00U$\x04\xcb\xd1p}\xc2d\xaa\x0b\xee\xfa\xa2\xba\xfd\xe1\xa8\x96u\xe0\x9e\xc9\xa6\x87uO\xd7\xa1 \xf5\xcf\x95\xd7\x00\x0b\xd1#\x00\x05T\xbe\xd7\x95\xb5f\x84\xfc\xf0\xd1\xf3}F\xa3Q\x1f\x0e\x85\xc2\x86Y\xc3t(4\x16\x8ax\x8e8g\xda\x83W\xaa\xf7\xed\n\x8e\x0ck\xda%zo?\xfbrh\xfd\xfe\xed\xfb\xab\xa55\x9f\xbeb-\x02Q\xa9\xd6*Pkk\x90\xb4*Q\xec\x83\xefF\xd0\x11!\x08D\xaf\x07\xcf\x87B\x06\xb2\x0b\x8a\xa0\xba\x0b\xcd\xbb\xaa\x83C/\xb4\x9d\xe0\xbe\xbb\xa5\x8e\xae\xee{G7+\xb7\x83\x18V\xb4\xf2\xbd^{\xad\n\xa4S\xb9\x8c\xbaJ\x0c\x8dF\xf5\xc2\x9aO\xcd\x11\x11U-\xda\xbe\xb5&gt;\xd4\x99\x9d\xa9&gt;03:\xa8-\xd6\x7f\xbf\xbf\xd5\xd4\xe3?;\t\xd6\x82\xad\xaff-U\xad\x8aL\x15\x12U-c\x07|\xd1\xf9`\x7f\x12\x10[\x15_\x1fQ\xa3\x18f3C\xa3\x17\xba;\xdb\xdb;\xcfj\xdb\xc0B\x14\x9b\x86V\xbdg\xbdse\xb8\x1dlD5a\x12\xbe\n\x91\x9a\x13\x8c\xff?\x11\xcf\xa8h\xa0\xd7k5\x90 +\xb8&gt;B+\x99\xee\xb9\x91\x91\xce\xfe`\xa7W\xdb1D\xd5\xf0z\xd3z\x8f\xdf\xeb\x7f\xee#\xf4\x1f\xb1\x08D%\x82\x9a\x01\xa8:\xd4\xcc\xa5\x06\xb1\xa3RG\x80\xff\xd7|\xeaF\x05]#\x90{\t.\xb9\x99\xc5\xaf\xcctvz5n_\x07\xfdC\xeb\xa3^\xef\xea\x7f\x08\x92V\xb1\xc2\x88\xd1\xe5*\x97\xe3\xa9T&lt;\x15\x8f\xc3\x01\x04;Q\xd5\xcb\xe5\x82\xe3\xc8\x05yL!+zA.1 D&lt;\xbb\xb9y!\x18\xfc\xba{X\xe3\xe1\xc8\x1e\xef\xed\xf1\xab\x93^\xffQ\x82\xa6i\xfd4/$R\\*\xc5q\xc9d\x92\xe3\x00,\xde\x07y\xbe\\.\x03%\xfc7\xe5rQ\x0c\tA\x04.x\x11db5\xd1=\x13\xec\x1c\xd7xTY\xb5\x7f\xf8\xdd\xba\x7f\xd2\xbb\xfa\x9aP\xa9d\x0c\xc33I`\xda\xca$\x9d\xdf\x1d;\x92\xe4R}s:]\xb9\x94R9\xb7\x92v.\x85\n\x02#\xf1px\x1ah\x9a \x12Jv\xa4sf\xc9\xaf\xf9\xc8f\xd0?~\xf5g\xff\x9cJ\xa5\xb0\rGpP\xe9\xc2\xd7\'\xfb\xbfs\xde\xad\xffS\xbb\xd3\x9eR\x93V\x89\xc3\xbb\x9c\xce\xcc_\xee6%S\xa5Tb\x8e\x8b\n\xd3j\x18\x11$\xb1y\xc1\xb9T\xf7lR\xfb\xd1\xb7\xbf{}\xb5\xa7\x87\xa4i\x92Z\xea\xb2%\x93\xcf\x82\xa6\x89\xe3SS\xf5SS\xa7\xeet\xa5*\xb9\xb4\x9ci9vlw}}\xfd\xd4\xc5\x91R)Q\xc2\xbb\x1a\x02a\x1aNP\x88b\xd6y\xb7nH\xfb\xb1\xee\xfe\xe1\xf5\xf1\x9e\x9e\x04\xc9\xd3\nv\xc2\x86g\x93_\xde5\xf5O@\xe7j]\xb8yg+~\xf4\xf9\xd1\xa3\xab\xba\xe4\xee\x07\x0f\x1e&lt;\x99\x9a2\xed\xbe\xeb\xcc\x0cu\'m\xcb\x8bQ\x95\x0b!!\x86u\xc1\xb3\xdaOO\xab\xdazF\xe7\xe6\xcad\x98\x14-\xcb6\xae\xc4mm9\x9f9\xaflm\xfd\xae\xf1\xedT&amp;\x0e\xc6*\x97]\xdc\x91\x85\xc6F\xeb\x91\xae-\xe7\xd7\xb0\x13J\\\xe6\xd3\x8d\x86B$\x12\xa1\x89M\xc0z8\xac\xfdl\x1eR\xc4xO\xa2\x8f$I\xea\xd0!.\xcb9[\xae\\\xec\xbfs\xea\x8e\xc9\xfaS\xe3T\x86\xe9\xa8\x1c\x86\x82}\xbe\xa6\xe6:\x00o%\xb9R\xb9/\x9e\xc2kA.\xc0"\xb3\\\xa6\xae\xe9\xd7xd\xb0\xd7\xdb\xbd\x99(\x93\xa4B\xa18\x8e5&lt;\xb9t\xe9\xdc\xa3\x9d\x9d\x1b\x8f.\x7f~\xd3j\x13+\x07$!\xdb\xe6k\x1ao\xd6\xec;w\xf8\x8b\xe6`&amp;\x15g\x18\xac6\xcf\xd3\x80\x85.m\xcd\\\xfd\x15\x9ey\xee\x19\xf4\x8fd\x13:\x92t\x89\x14e\xd9\xa8yt\xee\xc7Go\xde\xbc\xb9\xf1\xe8\xde\'7_\x9e\xa0\xe0,"\x11Cny\xe1\xb7\x7f=\xbd\xb3S\xb9p\xf8\xd42FQr\xc1\r\x99\x8e\x94j\xafOx\xf7Wi\x1e\xc2\x9eR)\x9bM\x10$)R\xd8\xa1\x835\x87\xf7];\xfe\xe3\xce\x9b\x1b\xe7/\xdf{\xfb\xb7\xc7\x8b\xbc\x9e$\x00\xcb\xdd\xf0\xcf\x85\xb7\xf7n\x9c\x06\xae\x9d\xbf_\xba|\xa3\xa6\x96\x11s\x850\xcd\xd3\xd9N\xd3-\xedc\xb8\xe7y(\xc4\xcbY\x85\xa4IE\xae}\xbc`=X\xbf\xfb\xf8\xb5o\xce\x7fU\xfd\xc7\x7f7\xd7/:$\x9e&amp;\x01+b^n\xbdy\xf8\xf2\'\xff\x80\xe8~\xdb\xfe\xf6\xf7\xa7?\xdf\x88\x16x\x9e7\xd0d\x835\xf3B\xf3 \xee-@}\xa2P\n\xc4CD-\r\x1b6\xdc\xe6t\xd6]4MML\xd4[\x97\xa3\xa1H\x05\x8b\x0e\xcd\xe6\x97[\xeb_.\xdc\xfc\xea\xfc\xb7\xd7\xda\x9f,\xd4\xff\xf4\x87\x8d\xbc\x83\x87L/.-\xdbPtR\xe3\x02b\xb0\xf8a\x8c\x17\xe3\x80\xa5$dK\xb4 \x83\xef\xedp\xcc\x9cl\x9d?\xb8\x9cs\x84\xf4\x04a$\x8dP\xbc\xe7\x16\x0f\xbe\xacom\xado\x9e:v\xf2\xb3Xlq#oA\xc3&lt;\x1f\x96\x1c\x8e\xb1\xb1t\xaeM[\xb5^\xa4\x8by\x89\xa2\x14^Q\x14\x91\x92%\x99\x92e\x96\xc3m-\xcb\x9f\x06d\xb7\x14&amp;\xd5\xd6\xccH\xf3\x11\xde|\xa2\xd5jm=\xd6\xe2t\xda8\xb7d\xce\xe7\x0bT\x98\x0f\xf1\x92C\x1aK\x17\x8b\x1a\x0f\xc0\'\xd3\x8f\xb7s\xb2\x18\xe6\xc3"\x89\xc0\xaf\x17e4\xcbb\x81\xda\x86m\x8f\xc8\xf3\xee\xe9\x15(\xbd\x8c$\xdc?\xec\x8e\xc6^\xbd\xb2\xb6\xb6\xd8\xec\x98\xc7&lt;\x00\xa6\x0b+$\x1f\nI\x8e\xb1\x81\xe2\xfb\x0f\x1a?\xc6\x98\\\xfc\x90w\xe4\xdc\xbc\xc4\x8b\x08\xa1\xc2Q,nY\xb2XX\x86\x81f\xd0-\xba\xca\x1d.\xc5\xb8\x12\x8e\x84\xdd\x82=\x16\xeb\xedm\x89\x05\xa2\xd1\x9c\x87\x0f\xf3`G\x1ez~\x87#\xad=\xd6\x8b\xe2\xfb\xf4XAr\xf0\x10/\xc8\xa8J\x98\xcf\xca\x98L1.Ft\xbb\xdd\x92[)C\xfdG\xae\xd0\x11\xb7\x9ba\xd1@\xc0\xb6\x14\x08xP\tL\x15\xa6\xc9_\xb0@\xad\xa2\xb6XU\x80U\x1c+\xb8\xc1!\x14\x84\x11\x16\xadP\x94\xc8\xb8DAp\x01\x17x\x0b\x8aRqz\xda\x00XL\x9c\xe5\x02v\x8e\x95)\xb7*\x15I\x87yuD20\x06?\xad\xed7U\xda\xee\xc4\xf7\xe9\xd9\x9cGr\xc8\x14O)\xf1\x84\x92\xa0\xa8\x84\x18\x17\x19T\x98\x16\xdd\xa2\xa8\xa8X\xd3\xa4\xaa\x16p1.!\x80\xa1\x82(\x92\t\x02\x01\xb1x\x80\x02\xcb\x17\xdfc\xda&gt;\x18\xae\xda\x9b.\x02\x16*\x99\xa5,\x05\x8bQ?d\x08"\xcb\n\x0c\x90\xb8\xc53P\xc13\xb0%f\x81JH\x9dqa\x1e\x96\x12)\x17\x01\x1b\x97\xe7\xc1\xee@5\xf6\xe1\xfd\x88\xc6\xcf_\xf7\xa2\xc5t\xc1#Kf\x14e\x05(\xd6\x19\x01\xb0\xc0Y\xa8\xc0\xb0\x05\xc0\x02g1\xf0\xa6$\xa9 \xb9\x04\xf8\xcab\xac \xb0l6\x9e\xa5d\xd5W\x03\xd14x\xab\xa4u\x11\xd8\xb3\x08X\xacl6c8\xca\xe18\xd4\xea,4\x16pg4\x8f\xbae\n\x90\xa0\xcd\x10\xe4\\\xa1\x00\xa4)\x88"\x8a\xb1,\xcaq\x1c\x8e\x16\xd4i\xa5\xc3\\,\x16?h^4O\xe6\x07\nQTr\x98Q\x0c\xb7\xdbq\x8c\x93\x85x\x9c\x11\x04|{\xdb-\x17\nB\x1c$\x84\xe5\xc9\xcd\x16\xd0\x1c\x07\xf6bQ\x16\xfeNf\xec\x16\xb3\x8a\x95\xf3\x80Z\xdbmZc\r\x96\xf2\x05\x0fZ0\x9bQ\xbb\xdd\x1e\x08\x04p\x96\x85jJ@{7\xa2\xb3X4\n\xac\x01;\x8a\x07\xb6\xcd\x05t{\x1b\x13Rp\t\xb8p\xbb-\xa6b\xa5\xcdfs~ ]\xd2\xbah\xae\xda?\x89\t\xb2\xa7`\x89bv;\x06X\x18\n\x99\x142\xa7\xb5\xd5\x13\r\xc4zc-\xbd\xf0\x11\xfbly;\xea\xe9}\x15\x03c\xc92\x8ab\x98\xddV[\x0b@y\xb3\xd9\x91\x1f\xc8\xfd\xacy\xbdU\xf5/\x81ar\xb9Cf\x8b\xc5\x8e[\x02\x16\x1c\xb6\xa2\x10\x88Y\x1b_\xfd\x8f\x973\x0cm\x1b=\xe3x\xd8\xa7}\xf2\xb0?\x19\xe2\x1c\x9c?\x0c\x0b\xc7N\xa4\xd8\x92E\x8c\x11\x16\x12\xa8\x0c\xda\xe9\xea\x08\xcb\xb1\xd4\x1a76DmJ\xaa\x10\xba\x95\xf9\x9c\\\xd2#Y\xddps\x83c\xccd\x13\x92\x0f\xa1t\x85\xd9\xe0/\xdd\xd9\xe9\x1dg\x92\x11hK\x83K\xd6\xd4\x0c\x87@!m\xdaA\xc7\xb8\xb5\xecy\xd3\xc2\xd8\xe7\x8b\xf6H\x96\x8c\rz\x7f\xfe?\x7f\xbd\xef#\xe5U\xaa[\x9d \xcb\xab\xaa\xdaQ;\xc1`G\xdf\xd0\xd5Nuh\x04\xba\xad\x91\x11\xc0\xaa\xd2\x14`Q&gt;\xdf\xcc\xcc\xd0\xe9\x17\\\x03co/~1\t\x8e\xf7\x91~\x94\xb1\x91\xcbgF\xfc\xfa\x87\xe75M\x8f\x9e[Y)\xedW*\x9b\xc1\xe4\xea\xca\xe0\x87-\xbd\xf3o}\xc3\x8f\xceD(3r4EQ3\x94\x8f\xf2\x8d\xde\xbap\xfa\xf3 \x06^\xbc\xbdx\x06\xb0\xc0\xf1\xfe!\xb0M\x18\x06\xc5\\\'9\xc8o3\x95\xc5\xd5K\xdd\xe4\xe0\xde\xd9\xcd\xee\xca\x9bK\x83\x1d\xbf\x1eT\xab~\xc8\xf2\x99\xcbg\xc2$\x8c\xe6\xd4\x8c\x8fzD\x8d\x8e\xbe5az\xc6\x8b\x8b\xbf\xbb;\xe9\xf3\x0f\xf9\x87\xc2\x80\x06m\x8e\xe4\x84\xd6`\x8d\x91\xfd\xa1\xcaq\xb2\x99\x1c&lt;N\x9e-\x9d}\xffy{\xe3B\xac\x13\x04{\x01\xfc_AQ\x92\xa6g|\xa3&gt;\x8a\xbau\xeb\x82\tU\xf3\xdb/\xce\xdc%I\x1f9\x19\xf6C\x16\x91\x9f\xab\x07\xc1\xa4K\x0e\x93\xaf\x05\xd6\x08\x06\x93FP\r\x06\xf7\xd5G\xcf\x86\x1ej\x1d\xa1\x1a\x0b\xc7\xc2p\x8549\x04\x12\x93\x90Cj\xf4\xd6\xb3\x17\xa7=\xc9\xc6\xe2~{\xf7\xf2\x08I\x02\xd5\x90\x7f\x124#\xfd\xb9\xaaR\x0fj\xdb\xb0\xafJ\xbc\xcb\xa5\x06U\x97\x8b\x17^ol\x0c=\xbcP\xd5\x0e\xb7c\x08k\x88\x84\xae\x01A=z\x04\xd5\xe9?\x07N_\xadgPa\x91\x93\x93\xfep\x98\xf4\x93\x14%k\x8c\xa2*\xdb1t\xb2U\x19\x00S]P&amp;\xeb\x80\xe5\xbf\xf0P\x96\xb6\xb7s\xb1\x9d\x1c\xfa\x1d\x93\xd0A\xf8(\xfa;\xdf\xe8\xe8\xe9\xdf\xb0q_\rO\xe6(r2\xe6\x83\xcc\x90$\x15\x12C\x1a\xcf\xcb1h]\x96\x01\xb1\xcc\xf3JY\x92D9G\xe5\xe0LU$\xf8\xb4JQ4M\x91\x1b4\xa8E\xef&gt;\x1a\x9dYv\x9f\xfe\x99\xf8\x97\xd7!z\x1b~\xfe6\xb4\xbaC\xef\xca2S`b\xb1\xc3\xf8v&lt;~\x18g \x8d\x8a\xa2H\xa2\xa6\xc9\xafsrN#x\x8d\x115\xc0\xa2\x11Z\x98\xa2\x1b[337N=\x89\x03\xee;_\xc7\xe3\xeb\xbe\xeb$\x89\xc4\x12\xe9m\x91\xc0b1Y+\x1f\xc6\xe3eEqA\xa8|\x99a4\x19-1\x91(\x14\n\xd8G\xac\xef|\x93\xf4\xd6\x87\xc6V\xf8\x85\t\xb7F\xd0t\xfd\xbf\x93\xfe+$\xd4\xf0\x14M\xe50"$3X\xb9\\f\xcaJ\x99\xd1\xe0\x8d\x8b\xd7$\xb8\xe4\xd1\x98a\xe60\xc6\x15$\xac\x81\x894\x1d\xa2B\xbe\x99\xf5\xeb\xcb\xcb\xcb&amp;M\xf2\xb4\xf4\xfcm\x1d\x0cOR;;dN\xe6\xb0\xf80V\xc8\xc7\x81\xa6\x0c)\x94t\xc9\xc53\x8cRv\xe5\xf3ke\xe6P\xa9c\xa2x\x80A\'\x0fj\x91\xdf@\xb5l\xde\xd4\xfe\xa7\xd7Q\x06\xc1\xc6d.\xd4*3\x85"\x9ery\x82\xb5Z2\x99\xac}\xdc\x06\xd5\xa2aDRJ\\i\x11\xa1P\x08\x0b\xa1\xa0\xc9_\xf7\xf7\x98\x18\xfdWb\x90\xc3\x1d\xe0\xa20"\xae\x18\xd6@\xd71\xb8\x07\xf1\x1e\x96O\xe1h\xe2\x19\xabQ\xc0Z\xad\x90\xb8\xb5+"*j\xe7\xf7\xa6\xce\xb6\x1eX^\x07*y\x076e\xac\\\xecN\xad.\x9e\x0f,N-\xae&gt;x\xf2\xe4\xf1\xf4T`\nb10\xb5\xfa\xd8\x1a\xf1\xd4[\xa2\xb8\x0b\x8b\x18\xa2\xa8\xf1\x1b\xe6\xce\xb5\xbes}\x87\x92iyg\xe7\x90\xc9\xe7qo\xc0\xbbw\xb6\xb6\xb77\xb5\xb8\x08X\x8f\x1f?x\xf0`u\x158\x17\x9f,\xe0F\x91\r\xd1\xd8.`\x894\xb5~\xc7T\xaa\x9e\xb1\xaf\xc6\x01\x0b\xb2\x12/\x13M\xab\xc3p1Z\\S\x82\xb5\xe4\xde\xfbOq\x0c\x06K\xa63\xd9H\xb1@S\xe2.\x80\x85B;\xebcfBYz\xdc\xdf\x8c\xcb\xb7\xc1-r9\x1f\xc1\x8by\xe8\xa6\xaa\xf1\x98|\xc8\xa0;\xcc(\xd4\x8e\x84\x06\xa2b\xc9ax$4\x11\x07\xc30\x11\xb0\xfa\xcdU\xcbrc}\\\x13C\xe3\xb7\xf3\x9e\xa2"irU\xd0uF\xd3\xe2q\t\xc6D\xd5\xa5\xcb \x9e\x06\xdd\x84\xda\xc4=\x12\x9c\x88\xe2\x01\x07X\xe3WM~\xbe\xc02\xf7\xc3\xf804\xc4\xe4=k\xa0TH\x17\xa0l@\x1d&lt;\x145A\x97K\x10$F\x01\xcc\x10V(z\xca\xc3\xa1\x10Gp\x1cF-\x99l-4\xf1\x8d\x86\xb4\xac\x15\x8c\xbc\xc0h\xa2\xce\x08\xe8\x8f\x16Pm\xed\x1d\xef\x1d\x1f\xd7\xe0\x1d\x14\x12\xba\xae\x03W\x9d\x80\x046\x08\x0e\xbb\x1d\x1a\x1f3\x99\xca\xe2\xfe\xed\x1a\x06\x83]\xbd^(\x8b\xa2\x04\xda\xf0\xf5`\xb3\x86\'\x8eO"i@A\xc8\xeb\xa1\xdd]\x850\x8a\x04\xc6\xb1\x805\xcc\xad\x9b\xfe\x8c\x88\xfb&gt;\x87\x11l\x81\xa8C{\x12p\xf1\xf9|\xd1h\xd6"\xb5\x9bAcs\xdf\xa8\x05\xf3(\x95\xbb\x9c@\x18\xfb\x1f\xb1\xc4r\xe1\xaa\xd9T=\x96e\xc0\xaa\x17\x10W\x01\xc3$\x85W\xf8\xbc\x0b\x19KE\xab\n)\xe49^\x108\xae\xc0\xb2D\x81E\xf4\x07y\xd3\xad\x05\xfd&lt;\'\x16\x10V\x11\x99Y\xc1\x04A\xe8\x08@\x87\n\x1b\x9eG;\x80\x02,\xa2\x00\x0bk\x18\xa0X\xa3&lt;\xf6\x7fP+\x0fr\x81X\xe0hEd$I\xd2\x91\xc5u\x89\x11\x04]\xd0;*\x0f\xc5\xa0\xc4q\x1cAp\xac\x01\x8aq\x8d\xf6\xf6\xac\xe9X\xeee\xe8\x89\xf2\xc5:A\xd4\xc1\\\x0c\xa33\x8a\xa43\x92\xaek\xc0\x06`(4\x06\x03,\x96\xa8\xb3l\x9d\x03\xac\xaf\xfaM\x17\xcb\xfd5\xc6a\x05#\xe5\x89\x14\x970\x85a\xa0\\\x16\x18I8I\xe2\t\x13\xa7K\x82(\x9cX\x8be=u\xec\xa0\xd1\xb8b\xbeZs\xe3\x90\xa0\xa5\xd4&lt;\x1e\x89x\xf2P#K\x0c\\[\x08\xc8\xf4j\xc7\xd5\x01_\xf1.N\x10\xb1z\xb1\x99JE\xd8\x08\xca!w}\xce\xecg\xb5f\x9dk\x80\x85y\x9a\x0e\x07n\xe4\x97\x96\x14\xb0\xb9\x04\xaf\x0e\x1az\xd0\xa5\xa2\xc0\x0b\xf0\tW7"\x91f"A,5 \xae\\\x1b3\x97k`\xee\xfe\xda\xc1.\xc7y"\x8et\x02O\xe5!\\yty\xa1\x06\xd1@\xbdY;\xe9"\x08\x180#x:\xed\x88x\nl\xbb\xdd\x18wN\x98\xea.\xcb\xec\xb5o\xbf&lt;8\x00\xbbG\xf0\xac\x03\xb8&lt;\x9e|\xde\xa3\x06\x8b\xea\xe6f\xb2T*%K\x08\xacX\xac\xa7\x80*\x93N\x18\x04P\xb5\xa3\xc3N\xa7\x99\x8f\x90\xf5\xb8\xe7\x9c\xdf\xa6\x1a\x07\r\x02r\x84\'p\xbc\x99\xba\xe9\xb9i\xa4\x0c\xbc\x99\xe8v\xd3\xdd\xeeq7\x81C\xf6\x0c\x03O$@,\x9c\xad\x9f`\xfd\xc6\xe9\x9cxj^\x1a\x07\x9eN8\xff\x88\xb7\x1b\'XM\xbc\x89\xe3`||\x1e\xc7\xbb\x8e\x84#}\x9c\xedv\xb3]\x1c\xe1\x02\x95\xc3\xe1\xe8\xee\x1b-6\xdan\x97\xbe&lt;\x02.\xb3\xe4\xb2\xf4\x03\xd5\xc4/\xbe\xdf\x04,\xd6\x88$\xa0y \xc2\xe7\x13\xd9D6\x9b=\x86\xa4\xa1m6\x9b\xce\xa6\x1d\x0e\xd0\xaa\xd4lE\xa3l4\x1a=\x97\x02,\xa79rY\xdcc\x13pp\xa7\xed{k\xa3\xddf\xf7\xf7A\x11\x90$\x91\x05\x82L&amp;s/}/\x93Y\xb8\xb7p\x0fvik\xda\n\xe1(\x95\x9a\x00\x15\xad,\xce\xdfw\xda\x9c\x13\xb3\xa6\xb8\xea#\x94\xd3\xf6\xd9\x1f /,\xbb\x9fL8\xacih\x1ft\xc9,L{\x17\x16\x02\xd3\x81\x85\x05/\x10Ng\xecv\xf8\x06\x07*$\xd6\xe0\n\xc2\xb2\xd9N\xfb\xc96KO\xff\xdc\xc4\x11B\x02\xb0\x97?\xf7\x0e\xb6\xdb-\x96\x8d$\x1d I\xda\xee\xf5\xdaA\x9e\xcc\x9e7\x03K\xc0\xbb0=5\x1d\x08d\xec\xd6\xee\'\xaa\xca\xf97\xf3\xf7\x81\xca\xf9\xf2T\x1f\xfe\xb6\x0c\x00\x14\x1c\x15\x1d\x19\xb8l\xbd\xf3\x7f\x8e\xb6\xa3\xd1\xfd\xfdd\tlm\x05\xac\x8c=\x03\xab\x17\x98\x02\xb0\x99\x9a\x82\xbd\xdd\xeaH6[\xfb\xd1J4\xfa|\xf5\xd5\x9f\xde\xd9P\xf4N\x8c\xb9O\xe9\x96\xcd\xc9\xbf/p\xda&gt;\x05\xca\xe2\xd1\xbf\x16\xcfE\xa3\xad\x13.0\x17x\x08\xd0\xecVo 0\xe5E\x11\x807\x99=k7\xb9\xdf\x02\xaaJ\xe5\xdc\x9bW?\xbe\xb3\xf5\x1d\xd9\xe0\xf5rn\xf64\x14\x1b\x98}z\xed\xbfP\'\\\xce\xbe_\x05\xce?\x8fF7[\xd0\x81&amp;\xba\xc8\xf5\t\x87\x1d\xf4\n \x95\xbcv@\\\x80\x9d\xa3\x9b\xdc\x04\xa6J\xe5\xf9\xf9Wo\xfe\xf1\xce\xd6{tt\xd4\xd7\xfb\xcb\xa3\x97\xd7\xc6~\xea\xac\x03\xf7,\x12\xaa\xcf\xf6\xbf\xd1\xf7\xb3\x1f/}\x0eX\x9b\x9b\xcdd\x13\xf2\x08g\x1c\x98\xdf\x8e|\x15\x08x\xadv\x10\xce\xeb\x05g%+\'X\xe7V^\xad|v\xd4\xd7\x07k_o_oo\xaf\xf3\xdaO\x99\x0ea\xe9\x1f\xfbO\'g\x10\x9aH\x96\xc6q\xb5\xb4\xca\xb2tJ\xdb\xaaRIG\xb0K\xbd\x0ct{\x14\xa1\xc8a/\x81\x15\xf5P\x87\xeak\x13\xcf}hB\xbc-M\x939\xc4\xa3\x87!\x10\x16\x82\x1e\x0419\xc8\xde\xcca\x1b\x06\xc6k\xa7\xe7\xb4$\xa7&gt;\xc8B\xc24Bc\xd2\x0b\xd9\xff\xf7\xde+\xa3\xbb\xcd03\xff2\xe5\xabW\xaf\xde\xfb\xbd\xff\xf7\xd5\xab:t\xfb\x86\xf9\xb4\xfd?\\\xdb\xc9\x87#\xf7\xea\xe7\x7f\\_\xbf\xdf\xa3\xfcJe\xb1p\xa6R\xc8\xad\xe7G0\x8b\xfe\'M6\xfb\xb4\xd9\x84Q\xcc\xac\xcf\xb7\x1f"[\x8c\x89kk\xfb\xe6\xf5/\xef^\xfc\xf9U\xeaf\x9bY\xb5\xbd\x9ddbe\xc2\x8a..\xed\x97?_\x9f\xbe\xdfC\x1c?\xf1\xf4J\xa5X\xfc\x00ET\xa9&amp;T\xb9zyz\xd5\xea\xdf\xde\x9e\x87\xc8\xa5-\xce\xc5J7\xcf\x0e\xff\xcc;\x05\xee=\xea\x04\x14I\xc1\x04=\xa1^\x89R\x97\x0f\xdc\nn\xfe\xeb\x97\xd7\xefO^5_\x11\xd4S,\x12\xb4Z\x81\xa9\xca\xa8*\xa0j\x9e^\xd9\xc7\xb7\x17\x0f\xe5-\x8e\xb5U\xde\x12`\xe5/_\x0e\xff\xe0\x7fL\xc7k\xc23=I\x0cI\x01\xa5\x87\x98[\xb4\xb1je\xf1\xc1\x06\xd7_\xde\x9f\xe2\xb5\xe1\xe9\xd3&amp;\xe3JeS\x7fc\x86e\xb3\x95_\x89\xea\xb4rue\xf7?\xdf~\x8cn\xf9R\xf4\xad\xc7\xf2\xb3?\xf0\x9b\x0c/\xbe\x07T\x99\xc6_\xb9\xa4+\x8a\xa0\x12\xc9\x91L\x86\xf7\xbb\x85\xe6{\xac\xf4\xa0b\xcf\x19\xda\x81\x8aE0kY\xadV\xa5y\xd5\xac\x9cV\xec\xfe\xedE&gt;\xc99\xca\xe5-%Tfdev\xa8\xd3B\xf6\xdd\xefK\xa97\xcf\xb6\xd6\x02\x97L*!EO\xfa\xb6\t\x0f\x93\x91\xb3\xcbI\xa7\xb2w\xfdO\xdc\x8aY\x91\xe6\x0c\x0f\x9eY\x96\xd5\xa9Pn]\x9d^\x15\xdc\xe3\xe3\xaf\xa1\xf2\xa3\x14]\x89\xa2C\xffP\xbf\xf9\x1d+\xec\x0b\xba\xf9\xca\xb0\'\xa9\xe8\xba^\xd6\x93\xba\x8ent\xd6I\xb2\xecs\x96\xe3^Q_\\\xee\xc3\x93\x93\xbd\xbd\xbdW)\xeb\xb9\x85\xa5\x9e\xa7;\xf0\xaaU\xab\xd2&lt;A\x14ON[n\xff\xf3Az\x8d\n\xc6\xeb\xa1"\x81\xf1^\xcb:\x1c\xfb\xe57\x7f\xc6\x82A!@\xba\x90B\n\x91We *\x84FRk\xf3\xc1\xd2\x8b\x1d\\T;\x1dz\xf0}\xfa\x84E\x1e+{\xd5\xaaZ\xd9l\x87\x85\x109\x9fJ5\xaf*\xbd\xfe\xe7\x8b;\x85.\xd7\xc5\x1f\xf5\x19\x85B\x8c\x8c\xaa\x10\xd4\xd7\xbf\xf1\xfb\x1a\x08\xdf\x93-\x9f\x883\x91t\xc5\xaf"\xde\xa4b\x0cvwv\x06\xc3\xc8\xe2\xe8\x12\\\x96\x95\xad\xa4R\x1dz\xe4X\xcfaZ\x96\x850\xdb\xe9T&gt;5O*v\xfb\xf8\xe2k\x94f\xe5w\x03$\xcc\x94\xb0\x00\x06\xd3h\x00=\x84P\x1e~{\x85\x05\xd4MRY\xf7IP=\xd6P\x00\xe2\xb5\xf1\x0e4\x1eI\xde\xc3\xd9\x87I\xa1\x00k,\xab:!\xb3\xac\xac\x95J\x81*\xdb\xea\xb4\x9a\x14E\xb7\xdd?&gt;W\x95\x8dY2\xa2h1\xba\x12\xef8\x84P~\xff\x8d%\xe1\xf0\x89\x0e\xf6$\x0f\x9c\xb2\xa9\x90\xef\x9b\xa2r\xaa\x9d\xdd\xb9Q\xf2\xe4\xb3\x0f6\xb0:\xe4\xd9\xa4W\xed\x01\xcb\x9a`\xe3\xf9\x8e\x9b\xb0\xdb?\xfe*E\xc5\xa5\x1bX\x9bbC\xfc?\xd8\x8bw\x87\xcf\x14\xe6h\x88\x92\tR\xc8b\xca+\x9f\x0bu\xfa\xca+`\r\x86\xa5\x927=p\xedN\x8b\xd4\xb1&amp;\xee\x84\xe2\x07\xf3\xfeET\'\xcdN\x17^\xbd\x8d\xaf\xa6Dd\xa1\xbf+dT\x11\x8aF\xe3\xbegq\x96iJ(\xfa\xe5\xf5\xc6O\r\xbc\xb9\xc1\xcd\xe1\x13\x84(\xe6Q\xb1\x0bq"F\xaa(\xc5\x8c\xa0\xda\xd9\x997J\xd0b\x1f\\\x15\xa8e\xb9\xdd\x9e\xd5\xaad[\xb4`5ON\x9bV\xb7\x8f\x9bP\x8a\xaa\xfajr\n\xeb\x14\x10\xc5x\x1c\x1f"*bS\x01\xc68C\x04\xf6\xee\xf1\x9f\x80\xa2\x96\x0f\x1d\xe5\xfbu\xad\x8e\x94P\xd1\xa4l\x17A\xcc\x11\x96v\xbe\xdf\x83_\xe0\xeaL\xbamw\xd2\xa2\x90\xe2\xb0\xd9\xb2\xfbD\xa5I\xc3\xf90\xc2\x8dg\xbd\xa3\x1f\x15f\xc5\xe3*\xb0T*\x14U\xec\xe2da\x94H\x95g\x8f\xb9\xcf\xc7\xf5\xd3\x90f\x10/&gt;\x1e\t\xa3C\xd1\xd2|wgW\x80\r\x98[\xb0\xabk\x93_\xadV\xa1\xd7n\xbbV\xc7B\xb9\xd2\xea \xd9\xfb\xc7\x97\x0bo\xb9;\x1e\xcf\x8dxqm\x86qUU#\xaaJ`T@\x11\x07d\x1fm\xa8S^\xfb\xaf=\xc5\xa2?&lt;\x90\xa8\x10\'\xc1\xd88K\x03\x9e\x08Qu\xb4\xcb4\xde\xd9\x1d\x0fF9\x03~\x19\x19\xb2\x8b\xf2\xabCv\xc1/\x8b\x12m\xe2\xb6\x91W\x17\xe7\xcep0\x1e\xe3\x82\x91\xb76\xcb\xf8\xbd\x1a!\x16\t\x1b\n\x12\xe3R\xe3+\xa9\xc5/\xaf\x0f\xd9k\x0fy\xc3\xc3\xcb\xf6E\n&gt;Wq\xb5\x8f\x16\xb1`\x91\x06\xd0|\x98+\x19\x06\xb0J\xf9\xb7H/\x9b\xdd\x8c\xbdn\x1f~\xc10\x02\x84Yg\x99Fc\xce\xc2&gt;\x9e\xe7\xd4(E\x8a\xe0"u\xc0D"\x11\x89\n\xbc\x18\x81w\xf4\xf1U\x0c\xe1\xdd\xfa\xbb\x00s\x94\x8d/\xec,\xae\xb8\xf8)j\xea\x91Y\x08\xc9p\x84\xad\xc1\xb1\xa0\xcc\xd7\xaa\xcd\x96/\xab\xea\xf6\xfbm|\x13U\xbb\xdf\xfe\xb00r\xb9!\xccB\xe0\xc7\x83F\x0c\x1d\xb1^%\x89P\xeaR\x84I\x8a\xb0\x02\xa3\x89\xb0\x90rT\xe5\xdf\x87\x01\xe1"w\xd37\xd4G\x17\x85x\x8e\xcc\x1a\x8c\x1a\xb9\xc6\x10T\x14C\xc6e\x18?V-\xbbP\xe8X=J\xa8\x89E\xdf]\xb7\xdb=\x9f\x11\xd6\x80\xa6B\x17.%\x95e\x93\x1a\x91$\xa9\x8em\xa5\x88 \\W]R\xbf\x04\xd4o\x89\xe1D\xc4AD\xf5jc\xa2\xca\x95r\x18\x8c\xb8r\x86\xc0J\x80\x8b\xec\xea\x91G\xdd\xc2\xc4\xee\xf5z\xae\xbb\xbf(\x19\xd4t0\xa6\xa8#\x1f\x971\xde\x95t/\xd5c\xb1\xd8#\xd5\xfd#\r\x07\xbcG\xc2\x81{\rk\xd5`\x85\x13\x11\xbe\x96\x96\x03\x040\x87&lt;\xc7`\r\xc2\x12`\xe0zk\x15\x90\xf36\xeb\xa3t\x1f\x00\x00\x03\xc5IDATb\xd7\xc6\xe2\xd5)\xd8\xb6\xdd=\x9a\x12Un8\x1a\x8d\x86\xc39\xdd\xbcK\x8fc\xd5\xefAEd\xb1:\xc4\xd1\x18\x13\x19\x87\xe2=\xea\xee\xe1h\x80\x1f\nGW\xcdT\xd1\x98\xcd\xc13\xf0\xda\xd0\x00G\x8e\xfc"\xacF\xa3\x01\xaa\x19q\x85\x7f\xa55\xc2BN\x01\xa8@Tn\xfb\xa3f\xe4\x0c\xdfY\x86\xb5\xbb\x0cR\xafR0\x9d\x8eq\xd5\xd9\x9f\x18\xf01\xaa\x04%\xd5\xd3\x81\xc7\x8a\x98\x84\x96\x9e\xe4E&lt;n\xa8\x08=\xf6\xb3i\xc6`\xf3/!\xa9\x1a\x18\x0bX\r\xa2\x9a\x81\xf5.\x8b\xe4\xea\xd8]\xa2\xc2\x12V\xb0]\x9eZ\xa0"_\x1b\xe2A\xba\xf4\xd0Q,\r.(\xb6\x82\xe3\x8a\xc5DU:]g\r\x02\xbc\x96\xf2\xd0\xab{,\xf01\xc9\xf3\xb0\xabK+\x0b=\xcfX\xa9d\x98\x845m\x18\xb3\xd9\xcc\xf3J\xc6\xc3\xab\x9e]@\xf0\n\x84U\x98 \xb7\xf6\xcf5\x9a\x05\xf9k\xe4\x86\xf31\xb4\x8b\xf7\x0e\x19\xcb\x82\x9c\x0e\x06\x19\x16\x83[S\x10\x1b\xd5\xa49y\x80Q2\x1e2\xd5\x0bz8\xf0\xa8\x08\x87=\x86\x0cSc^i6\xe3X\xb3\x92\xe1\x00+Ssf\xb3\x92\x07\xe0\xf0O\xcf\x91\xf5d\x93\x8d\xd5\xd5\xeeM\xf6?\xde\x19t\xbb\xc6b%\xcfh\x8c\x96\xcb\xe5\x9cV\xd6A-]\xaf\xcbr\x90\xb8@\xe0\x873\xcd\x15\xe4\x1b7S\x96\x03t&gt;\x18\x8cy\xc2\xc7 ]\x86\xd1\xd2\xc0\xc3\x862K\x03\x94=y\x96\xd04CK\xcc4\xc3t\x1aSG\x03\xd7,a\x98w)\xac]\x85\xab\x02\xcb-\xb8u\xf0W\x19\xa9U\xc2E\x9eGi?\xac\xd5F\x00\xdb\x1d81\x0c(\x07\xb1\xa5e\x01@c\x07\x83\xb2,\xea\x194}\x07\x82\xbe\x18,o4\x135\xe9\x18\xab\xc5\x8c\xbc4\x06\t\x06K\x00\xc3\xc9\x19\xb02\x8e\xa3%4\xd34\x8d\x87\x1f&amp;0\x0bv!\x90\x94ZG\x0f\xe9\x12\xb2\x003\x91g\r\xba\x17k\xe0\xc2\xbd&lt;\x9ek\x1c\x00J\xaf\x8d&amp;\'\xb8\xe45\x05\xc4wpM\xbc\xddF\xd5\xc6)9\xa19\xc4ehf\xd84\x1dma\xd9\x80\xfa\x0f\x85\xb1`\xd9\xee\xfeOwa\xca\x96\x84\xac\x99\xb5\xd1\xa86\xe4`\xf3\xc1\xa0&amp;k "*\xbfsb\xd2\xc2\xe1\xb0\xc6\xfb\xc5\x87\x9a$\x12\x81\x15\xe8j\xe8\x92,k\x88\x16\xab\r\xae\xa0\x05~\xc2\xc0\xa9Y\xc2t2\x198e:\xf0-w\x97\xea\x15H6s\xcb\xaa\xee\x1f|E\x17y\xd3\x0c\x83\nX5\xae\xc5|\t\x7f7\\\xe1L\x84\x15\xd6\x18\x19\x0ee0\x86\x03\xc0Kh\x9b.R\xac\xd0R3d\x83_\xbb\xd1\x8f\xc6:03\x19\x07\x014\xcd\x8c\x93\xcb\xff`1(\x86\x85\x15\xbf\xda=\xcb\xcf\xe0\xa6\xd9X\x82\n\xe2`\xb8b#P\xe8\x0c@\xa6\x99g\\\xa0\x08\x0bF(\xc0\x0041\x98OG\xd8p\x021\xd2\x08\xc4?\xc3\xdb\x85Mr\xcc$,\x87\x1a\xe5\xcc\xbbl\x8f\xee\xc3.V\x8a\x82\xd5\x9b\xb8\xeeY\xde\xccL3N\x8dcM!\x82\nS\x0f\x8c\x80\xa7I8\x9cgbn\t\xf1\x9a|`\x05\xa8\xad\xd3\xe1\x1b\x83:DF\'X\xec\xfd\x06&amp;\xaf\x04\x172\xac\xe189g\xfa\x16\x8fB\x1b\x0fC\xdb\x9e\xd0W\xfbl\n,\xa7\xb6`^\x11`\x86B\xfa8\x14\xf5E\x08\xd3|f\x1d\x8b\x80\xa6\x02k\xady\xd8\x07\x13\xae\xe4\xd1#R\x88s\xf1:r\x9dD\xb9\x0e\xae\x06lh8x\xc1q\xbb6\xde\x9cA\xd7\xab\xba\xee\xe5\xc7)]\xb9X2\xa720J\xb8\x92\x17\xa3\xd0\x07\x04t.\x9f\xdf\xf0i\xca\x94\x0f\xb0A0\x17V\xb9&gt;%"p\xe8J\xc7\x14$&gt;\x12l\xe4\xf9N\xaa\xd5\xb0\xb6\xde\x1du{.\xbd\xa1\xb2\xf7\x87\xee\xc1"\x9f\xc9Lk\x8b\x05\x0f \x8d\xbd\x92\xe8Y\x00p\xb3\xf8\xe8\x19Te8\xd6\xf4\xbf]\x02#\xf9\xeb5W\x1f\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>791416</v>
+        <v>787735</v>
       </c>
       <c r="B15" t="n">
-        <v>1984</v>
+        <v>1955</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cláudio Tencati</t>
-        </is>
+          <t>Rogério Ceni</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa2zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\xdc0\x08\xdds\x8a\x1cA\x02\x01\xf6q\\\x1ev\xa9\xca2\xc7\xcfC\xb2\xfbw\xb7\xc7E\xda\xd5\xb2e1&lt;\x9e\x00\x99\xfe\xfe\xfeC\xbf\xf0\xcb\xac\x99d\xf4N\x06\xefl\xf2d\x93\xa9\x17\xcb\x9cbn\xa3\xcd.\xb1&amp;\x13\xbbe+\xb6\x18\x9b\xca\xd0\xde\xbf\xa4\x17v\x99)\r\x9c&gt;/\x98f(\x99\x0c\xca\xa5\x14\xfb2\xdb\xd6\xc2t\xe7\x05W\x92\x01\xa6\x16\xf2\xfa\xe3\xd9!\xc5\xb3-\x10t^$K\x1f\x17\x9e\x920F\xc685#\xb8\x8b\xf70\x0b4\xde\xf1\x14\x0eX(`\xa5\xe1\n\x17@\xa9\x8b\t\xe6\xbd\'\xa8\xf7\x08q\x06\xceu\x1dA\xb3\x01\x11\xe2\x0c\xa0\xec{c\xef!AI\xf6\x01\xc1\xb0\xc2\xe0\xc83m\xc1\x84 F\x85\xa2\x06\x8d\x01\x1d\x90\x11$\xcf\xb2\x12z\x84\xbb:\x18\xbc\x10\xe0\x96P&gt;\x16{\x85\x97m\x04\xf2\x0b\x19\x02\xe8\xd1\xfa-\x8c:\xcb6\x9bG\x18\x95J0d\x06Z5L\x05\xae\xa2U\x86k,\x19*\x8e\xbf 4N!\x8c\xd1\xb0\x84\\A@\x89\'\xf8\xca2\xf2\xf2\xa2\x14\xee\x8e\x115\x19\xba\x03\xde\xd8\x0b\x16\xaeI\xa0\x1f\x9f\xc7\xdb\xfc49\xe8:;\x9e&amp;G\xc9T\xb3\x02\xc6\x8c\xf7YRsv\x06\xd1/\x990\xbc\xba\x9cMp\x9f \x85*tdv\xcb\x94t\x9e)\xe5\xcdP\xe5\x13j{I\xfa(RA\xbc\xf9:\xa3\xd6dYg\xe8\x18\x19qC\x8f\xb488\xc2^ 0\xe5J\xdcR\xd3\x1e\x8b\x0f1\xc6\xf6(\x05\x03H9l&gt;J\x18\x95.\x85\'\xdc\x15#\x9ec\xfb\x8f\xd4~\xb46Gt\xe1I\x1d\xd4\x97~s\x82lrQ4\x17\x8fV\x82\xc0X\xb0\xedpX\xf0\xa4T\x11tX\x94x\xc2\x0e(\x16&lt;\xde`\xd9B\xdc\x8e\x91\xbd\xb9\tTt\x13?\x9c\xaf\x984\xfc\x86\xf1\x8a*\xc3x\x86\xb3\x1e\xb3NZf\x9f\xa9\xde\xd3\xacQ\x99\x8am\xe9\xb4\xd0\xbag\xc1\xc2\x0e\xfe\xbb\xe0&amp;wV\xb6\xf4\xac\xb6\xef\xb2\x0c\xcd\xffY\xde~\x9a&lt;*oz^\xdf\xff\xa9\xf9{:&gt;\xcf\xb6\xc2\xa6\xed\xfc\xfc\xa9\xe6\xa6\xb2\x16\xb3\x9c\x17\xf3j\x1at\x04\x18\xb2.z/:\xf1`K\xf4\xdeh\xbd\xa5\xf7\xc11\xaf\xbc|\x88o\xd2{\xc3tG\xe2S\x0e\xe9\x8e\xc4\xa7\x1cR\xfb\x0e9\'\xf1\x80\xc3\x0e\xb5\x9f\xbe\x1b"\x1d@n\xa6\xdf\x1b\x06\x82\x8f,\xc75\x82M\x89\x93\x0f-\x00\x9f?\xdcE\x0f\xc39\x08\xb2\xa3\x89\xe1\xcf}e\xeb\xc6\xc8\xdd\xb9vJ\xf2\xb7\xda\x8d\xa1\xf6Au\xeao\xf7E\x87\xef\xb3\x7f\\$@`7\xafd\xfa\x00\x00iMIDATx\xda\xed\xfdY\xb0%\xd9u\x9e\t~k\xef\xed~\xa6;\xc7\x1c\x99\x91\x199\'2\x81Db$\x06\x82\x04@\x8a\x83HJ\xa6\xa1\xdaZmV]\xd5\xd6*\xab~\xe9\xe7\xb6~*\xbc\xd4[\x99\xe9\xa1e\xd6U\xa6\xeeVwI-\x89"5\x91\x14Y$H\x90\x840\x10 F\x02\xc8\x119O1\xc7\x1d\xcf9\xee\xbe\xf7^\xfd\xb0\xb6\xfb\xb9\x81VIbI\xa5\xb8I\xca\r\x81\x88\x8c\xb8\xf7\xdcs|/_\xc3\xbf\xfe\xf5/QU\xe5?]\xc3\xf5\xa3\xb7#v\x1d1%\x96\xcb\x05\xb1k\xe9\xbaH\xd7\xb5\xa4\x18\x89]GU\xd7L&amp;S6\xb7\xb7\x19\x8d\'8\x00\x91\xbb\xfd1\xee\xfa\x15\xee\xf6\x1b\xb8\xdb\xd7\x8f\x1a\x92\xaa\xa2\xaa\xc4\xae\xe3\xe8\xe8\x88\xa6Yrtx\xc0\xc1\xfe&gt;W\xaf\xbc\xc3k\xaf\xbc\x84\x00\x93\xe9\x1a\x17\xef\xb9\x07\x1f\x02\xeb\x1b\x1b\x1c\x1e\x1ep\xe6\xec9\xa6\xb35\xbc\xf7\xc81\xe3\x92?\x87\x86&amp;\x7f\x1e=Vo&lt;\xfd\xaf\x9c\x12]\xec\xd8\xdf\xdb\xe3\xe8\xf0\x90[7o\xf0\xc2\xf3\xcfr\xb0\xb7\xc7t6CDX.\x16\x1c\x1c\xec\x13B`2\x990[[c&lt;\x9ep\xfa\xccY\xda\xa6\xe1\xc5\xe7\x9f\xe5\xdc\x85\x0b\\\xbc\xf7&gt;vN\x9d\xe6\xa1G\x1e\xc3{\x7f\xe7\xcd\xfesd`\x7f\xee\x0c\xab\xeb:\xe6G\x87\xcc\x8f\xe6(\xcalm\x8d\x83\xfd}^}\xf9%^z\xf1y\x16\x8b\x05\xcdr\x89s\x8e\xfd\xfd=\x96\x8b%\x87\x07{\x800\x9eNy\xe8\xe1G\xb8}\xf3\x06k\xeb\xeb\x88\x08\xfb{\xbb\xe4\x94\xb8v\xf5\n\xcb\xe5\x82\x87\x1fy\x9c\xa7?\xf2Q\xd6\xd77\x18O\xa6\xdcs\xef%f\xb35\xaa\xba\x1e\x0c\xeb\xcf\x83\x81\xfd\xb9\x08\x85\xbdW\xca\xaa\xbc\xfe\xea+\xbc\xf5\xe6\x1b\xa8*!\x04\x96\x8b\x05\xaf\xbc\xf2\x12W\xdez\x0b\xef=\xf3\xa3#\xd6\xd6\xd7\xe9\xba\x8e\xbd}\xf3`\xf3\xf9\x1cUh\xaf]\xe3\xf6\xee.\xc1{\x96\x8b\x05\xb3\xd9\x94\xe9t\xca}\xf7_&amp;\xa5\xc4\x1b\xaf\xbdB\x17;^|\xee\x19R\x8c\xdc{\xdf\x03\xd4UE:}\x86\xf1dB\x15*\xea\xd1\x08\xf8\xb3o\\\x7f\xe6\rKUI1\xa2(GGG\xfc\xfa?\xffU\xae\xbes\x85\x10&lt;\xd3\xd9\x1aGG\x87\xec\xef\xed\xe1}@\xc4&lt;\xda;W\xdea\xf7\xf6.\x8bfIJ\tEP\xcd\xa8\xc2\xad\xdb\xb7A\x15\x11!T\x81\x9d\xedm|Us\xf3\xda\x15\xe6\xf39\xd7\xdey\x87\xb6iX\xdbX\xe7\xfa\xf5+,\x9b\x05 \\\xba\xef~.?\xf80\xd3\xe9\x8c\xd1x\xc4h4\xfe3m\\\x7f\xa6\rKU\x8912\x9f\xcf\xb9~\xf5\n\xcf?\xfb\x0c\xaf\xbe\xf4\x12{\xbb\xbb\xb4m\x83\x88\xe0|`\xe7\xd4)\xae\xbc\xf36m\x17Y6\r\x8b\xe5\x82\xae\x8bx\xef\xa9\xab\x9a\x10\x1c\xcey\x9a\xb6\x05\x1cJFs&amp;G\xb8~\xfd:{\xfb\xfb4\x8b\x05N\x1c]\x866%\x9a\xae\xe3\xfa\xf5\x1b\xbc\xf5\xc6\xeb\xacon\xb3\xb6\xbe\xc1\xfb\xde\xff\x01.\\\xbc\xc0=\xf7\\\xe2\x81\x87\x1e&amp;\x84@\xce\x99\xd8u\x8c\xc6\x7f\xb6\x0c\xed\xcfl\x8e\xd54\r7o\\g~4\xe7\xfb\x7f\xf2m\xbe\xf2\xa5/\xb2{\xfb\x16\x93\xc9\x94\xb6i\xd8\xdf\xdf\xe7\xe8\xe8\x90\xe5r\t8R\xce,\x9b\x06\xcdJ\xd2\x8c\x13\xc7d2\xa6\xaeG,\x16s\xbc\xf7t]\x07\x80\xf7\x82(8\xe7\x98\xad\xcd\xe8\xda\xc8|q\x84\x88\xc39G=\xaa\x11q\x00llnq4_p{w\x17Uecc\x9d\xbf\xf9_\xfd\xd7L\xa7\x13N\x9f:\xcd\x85{\xeea\xb9l8:&lt;\xe4\xa1G\x1ee6\x9b\xdd\xed[\xf7\x1f\xe4\xfa3\xe5\xb1\xfa*o1\x9fs\xe3\xc65\xdey\xfbm\x9e\x7f\xf6\x07\xbc\xf9\xc6\x1b\xdc\xbc~\x8d\x10*.\xde{\x89\x1f&gt;\xff\x1c\x8b\xc5\x82e\xd3\xb2h:\xba\x82O\xa9&amp;TA\x01Ah\xdb\x16\x11H)1\x1a\x8f\xc9)S\xd7\x15]\xccx\'t]\xc2\xcd\x17\xe4\x94\xe9\x9a\x96z&lt;FQbJ\x08\x99\x98\x12a&gt;goo\x9f\xbd\xfd}4+&gt;T\xbc\xf4\xf2+T\xc1\xb1{\xeb&amp;9%.^\xbc\x07\xe7=W\xdey\x9b\x0f~\xf8#\xec\x9c:\x8ds\xeen\xdf\xce\x7f\xaf\xeb\xcf\x84\xc7:\x1e\xf2\x9af\xc9\xdbo\xbe\xc9\x9bo\xbc\xc6\xf5\xabWy\xfd\xb5Wi\xdb\x96\xa3\xc3\x03\x14\xc5\xfb\xc0\xc1\xc1!\xaf\xbe\xfa*\xa3\xd1\x08\xef\x037o\xde`&gt;?"\xc6\x0e\x05r\xca8\xe7q\xce\x93sF\x10F\xa3\x11\x9a"\xe3\xe9\x94\x943\xde\xdb\xd7!\x82\xa6\x84j\xc69\x87\x8agsk\x83\xf1\xa8\xe6\xe0\xf0\x90\xe5\xd2\x8cw\xb1\\RU5k\xb35\xba\xd4q\xff\xa5\xfb\xb8\xef\xbeK\\y\xebM\x8e\x0e\xf79}\xe6,\xf7_~\x80\xfb.?\xc0O~\xe6\xb3\xdc\x7f\xf9\xc1w\xb5q\xfd\x99\xf0X\xcb\xc5\x82+W\xde\xe1\xca;o\xf3\xfc\xb3\xcfp\xfd\xeaUn\xde\xbc\x01(\x93\xc9\x94\xaa\xaaH9\x03\xc2k\xaf\xbd\xccb\xd9\x94\xdc&amp;R\x85\x1aEp\xe2\xc8YI9#\xaa$U\x9c8R\xdb\x11\xaa\x00)\x12\x04\xea\xe0\x88I\xc89\xa2\x9a\xc91\x03\x90S"\x12\xc1y\x0e\x0f\x8f\xd8\xdf\xdb\x07\x81\xaa\xaa\xa8S\xa2sB\xce\t\x9c\xd0\x1c5\xbc\xfc\xca\xcb\xbc\xfa\xea\xcb\xc4f\x89\x13\xb8v\xf5*\xcf&gt;\xf3}vvN\x81*?\xfb\x0bS676\x19O&amp;\xefJ\x03{W{\xac\x94\x12\xf3\xa3#\x9e{\xf6\x19n\xde\xbc\xce\xed[\xb7\xf8\xfaW\xbf\xc2\xad\x1b\xd7\xd9\xd8\xda\xc2;\xcfh&lt;b\x7f\x7f\x9f\xdd\xdd]n\xdd\xbaE\xdbERJxg\x86$",\x16s\x9a\xa6\xb50\xba8\x84\x9c\xa9\xaa\x8a\xd9d\x1d\xd1L\xcc\x89I]3\xaa&lt;\xd3\xb55bVk\xef\xa4H\xb7\\\x82\x081&amp;\xba\x18\xc1\x07\xc4Y\x12\xae\x08\xe3\xf1\x98\x9c"\x8beK\x973.TT\xa1\xa2m\x96\xe4\x14\xd1\x9cp\x02U\x08x\xef\xd0\x9c\xd8\xdc\xdc\xe2\x83\x1f\xf9\x18\xff\xbb\xff\xfc\xbf\xe4\x89\xf7\xbe\xafxV\xff\xefy\xb7\xfe\xe3^\xefj\xc3\xda\xdb\xdd\xe5\x9f\xfe\xca/\xf3\xbd\xef~\x1b\x11aw\xf7\x167\xaf_\xa7m[&amp;\xe3\t)%\x92*m\xd7\xb1X,i\xbb\x8e\xd9l\x8d\xf9\xfc\x88\x9c3\xaaJ\xd7\xb6\xe4\xactMC\xa8&lt;)&amp;\xd0D\x08\x81Q\xa8\xd9\xdeX\xc39\xa1\xf6\x9e\xd9t&lt;$\xf1Y\x95\xf9r\x81\xa6\x84\xb8@\xd3\xb5\xb4mK\xa7J\x17\x13((\x0e\x1f*\xda\xae5t_\x15_\xd5\x80X\xaf1vhN\x08\xe0\xbd\xc7{\x87\x13!8A\x9cp\xef\xa5\xfb\xf8\xcf\xff\x0f\xff\x15\x1f\xf9\xb1\x8fs\xf1\x9e{\t\xc1\x02\xcc\xbb\xa1z|\xd7\x1aV\xce\x99\xdf\xff\xbd\xcf\xf3\xb7\xff\xd6\x7fG\xb3\\\x925\x83B\xdb,\x18O&amp;l\xef\x9cf\x7fw\x8f[\xbb\xbbt\xb1C\x11\xc49b\xd7\x91R\xa2\xaa*bi$kN\xa4\xae\x03\x94:\x046\xd6g\x9c\xd9\xdc\xe0\xd2\x99S\xdc\xb3\xb3\xc3\xc6lL\x15\x04\'\x15M\xdbp4\xdf\x87\xac\xe4\x9c\x01\x07)\x13jOL\x996e\x0e\x9b\x86\x1b{\x87\\=Xpm\xf7\x80\xa3\xf9\x9c\x9c\xcd\xc8%T\x88\x04\x9c\x83f\xb94\x8f\xe5\x9dU\x94"8\xe7\x08U\xc0;\xc1\x0b\x8c\xc6c&gt;\xf6\xc9\x9f\xe4\xe7\x7f\xe1\x97x\xe0\xa1\x87\xd9\xdc\xdcb{g\xe7\xc4{\xb0we\x8e\xa5\xaa\\\xbdr\x85\x7f\xfa+\xbf\xcc\xde\xee.\xa1\xaa\xec)\xd6\x8c\xe2\xd8\xdb?\xe4\xe0pN\xce\n"x_\xd1\xa5H\x8c\x91v\xd9\xd06\r\xa1\n\x96\xcc\x0b\x88&amp;v6\xa6&lt;p\xf64\xef\xb9\xef\x12\xe7\xce\xec0\x1b\x8f\x08&gt;0\n\x01Q\x05\'\xa4\x9c\xc9qB\x9c\xd4tmC\xec\x12\x19!x\xb1\x9f/b0\x83s\xa8st\n7\xf7\xf7\xf9\xde\xcb\xaf\xf3\x83W^e\xefp\x01)S\x8f\x84\xaeM\x05\xbeHx\t\x8cG51E4g\xd6\'367\xd7\xd9\xbd}\x8b\xa6i\xf8\xdaW\xfe\x15\xef\xbc\xfd&amp;?\xfb\xf3\xbf\xc4\'~\xfcSLg3\xc6\x05\xf7:\xa9\xde\xeb]\xe9\xb1\x9af\xc9?\xfa\xfb\x7f\x8f\xbf\xf3\xdf\xff\xdf\xd8\xdc\xdc&amp;\x84@\xd34\xcc\x8f\xe64mK\xd3\xb6\xc4\x18\xc993\x99L\xadj\xccv\x90\xb1k\xc91\x11\x9cc4\x1e\xb1\xbd6\xe2\xa9\x07\x1e\xe0\xbd\x97\xef\xe3\xd4\xd6&amp;u\x15p\xc1\xa1m\x8bs\x0e\xf1\x0e\xa7\x80*9FR\x17\x89]C\xd7u\xa46\x82f\x92\x808A\\\x005c\x96\xbaFB\x05.\x90\x92rc\xf76\xdf}\xf1\x05\xbe\xfd\xc3\xd78jR\xc1\xcd\x96(\xe0\x83\'\x94\xdcK5\xb3\xb1\xb9\xc9\xf6\xf66]\xdb\xb0\x9c\x1f\x01\x10\x82gcs\x8bK\xf7_\xe6/\xfd\x95\xbf\xce\xcf\xfe\xfc/\xe2\xbd?\xb1\x89\xfd\xbb\xcec\xe5\x9c\xd9\xbd}\x9b\xef\x7f\xef\xbb\xe4\x0c\xa3\xd1\x88\xd1x\xcc\xe1\xd1\x11\x87G\x87t1Y\x1b\'E\x9a\xb6e\xd9\xb4\x08\x94\x84Z\xf1\xce!\x02[\xb3\t\x1f~\xcf\xa3|\xf8=\x8fpz\xeb\x14^\x15\x17&lt;J\x02\x8d\xa8\xf3hNh\x8a\xe0\x1d$E\xbb\x0eRB4!(hBT\xf1\xde\x81f\x88\x9d\xd1p\x9c\xc3\xe5\x80\xc4\x0e\\\xc2\x87\x9as;[|\xfa\x03O\xf1\xd8\xc5\xf3|\xed\xb9\x97\xf8\xdekoY\x9e\x87\x92#\xe4\x0c))\xde\t\xf3\xa3\xf9\xc0\xf5r8Bp\x88\x08\x97\x1fx\x88\xa7&gt;\xf0A~\xfd\x9f\xff\x13\xea\xaa\xe63?\xfd3\'\xd6k\xbd+\rk\x7fo\x8f\xd7^}\x85\xd1\xa8f2\x9d\xd9\xe1\xa82\x9aLa\xb94\xcf\x9429+\x9a")EC\xcbE\x08\xa3\x9a\xf7=\xfc\x00\x9f\xfd\xe0\xd3\xdcw\xee4\xe2=N&lt;\x1e\xb5*-\xb5\xd6\xb2\x89\t\xcd\t\xaf\x8a\x0f5\x04O\xee\x96\x08\x11r\xc2k\xc2\x05\xb1$=GT\x1c\x88\x92\xc5!\xce!\x9a\t*h\x8e\x80\xc39A\xaa\xc0\x853\xa7\xf9\x0b\x931\xf7l\xce\xf8\xc3\x1f\xbc\xc0\xb5\x83\x05]\x8cd\x0f)[c\xdc\xc7HV\xa5)EH=\x1a\x81f\x9a\xa6\xe1\xd1\xc7\xde\xc3\xf6\xf6)\xfe\xc7\xbf\xfbw8}\xf6,\xef\x7f\xfa\x83\xe6YO\x98q\xbd\xeb\x0c\xcb{\xcf\xb5kW\x89\xb1\xe3\xec\xd9s\x84\xaa"\xa5\xccr\xb1\xa4i[|\x08\xec\x1f\x1e\xd24\r\x82\xb3\xd0\x94\x15%\xb3\xb9\xb9\xce\xcf}\xe4\x03|\xec\xe9\xa7X\x9f\xcc\xec\xd0E\x10\x15H\x1d\xa4\x96\xe0\x03\x88\x82\x0f\xe4\xd4!)\x92\x96KD\xcc\xd3\xf9*\xe0\x11\x94\x96\x98#\x19E\x83C\xb3 \xde\x81Z\xae\xa59\x82&amp;\xf0\xde~W\xc1;O\x15*&amp;\x93\t\xef\xbd|\x89s\xebS~\xeb\xbb\xcf\xf3\xc2\xb5\x9b@O:\xb4\xa2@D\xa8\xeb\x9a\xa6mQ\x94\xe9d\xcab\xd9p\xfd\xda5.\xddw?\x8f&gt;\xfe\x04\x7f\xef\xff\xfd\xff\xe4\xdc\xff\xe5&lt;\xe7\xcf_\xc0\x87\x93u\x94\xfes\x9f\xfb\xdc\xe7\xee\xf6\x9b\xf8\xd3\\\x07\xfb\xfb\xfc\xe6o\xfc\x9a\xe5$\xa3\x11/\xbe\xf8\x02\xd7\xae]\xe3\xf0\xe8\x10\xe7\x1c\xf3\xf9\x82\xc3\xc3#\x83\x1aR\xc4\x89y\x8b\x07\xcf\x9f\xe1\xaf\x7f\xfa\x13\xbc\xff\xe1\x87\x98\xcdf\xf8`\xf9I\x08\x01\xc9\xd1J~\'%Q\xc7\x90t@T\x11\x01\'\xce\xc2i\xb6\xbfw"F\xc7\xd1h^\xb1\xe9\x10\xe7\x0c\xb9\xcf\x8a+\xa1WsFs\x82\x9c\xd0\x0c\x88\xc3\x87\x80\x13a:\x9ep\xdf\xce6\x9a"o\xef\x1eZ\xb1\xa1J\xec""\xc2t:c&lt;\x1e\xd1,\x1b\x9a\xb6\xa5\xaek\xa6\xd3\t\xaf\xbf\xf6*\xfb{\xbb\xbc\xfe\xda+\\\xbc\xe7^vN\x9ff&lt;\x9e\x9c(\xafu\xb2\xcc\xfc\xdfpY\xde\x94\xb8v\xed*\x07\xfb{lln\xf1\xd6[o\x12Sb&gt;\x9f\x93Sb\xdev,\xe6\x0bR\x8a\xa4d\x06\xe0C\xe0c\x8f&lt;\xc8O&lt;\xfd$\xe7\xcf\x9df&lt;\x9d\xd8\xc1\xba\x12\xc6b\x0b\xd9\xaa1R\x86\x94P\'(\x11\x8d\tbG\x8e\x11+:\x13N\x0c^H]g\xb9W6\x0f\xe5\xbc7jM\x8c\xe0\x1c\xe4`\xbfk\x82\xe4\x0b\x18\x9b\xc1W8\xef\xa9\xc7c|\xa8\xd8q\x8eO?\xf58k\xe3\xc0W~\xf8\x16\x87\x8b\x0e\xc4\x0c\xf7h1\xa7\x8eF\x10\xcc9s\xe5\xca;|\xfew~\x9b\xe0\x1c;\xa7N\xe3\x9d\xb0\xbf\xbf\xcf\x95w\xdea&lt;\x9e\xb0\xb6\xb6v\xb7\x8fi\xb8\xde\x15\x86\xd5\x1b\xd5\xe1\xe1\x01\xaf\xbf\xfe\x1a\xa7N\x9f\xe3\xb5\xd7^\xe1\xe6\x8d\x9b\xec\xde\xbeM\xdb\xb6\x80\xd2\xb5\x89\x98\x12\x9a\xad\x19\xbd6\x9b\xf2\x99\'\x1e\xe3c\xefy\x84\xd3g\xb7\x18\xafM\xa9\xea\n/\x14\x0f\x92\xc9\xb1C\x9b\x86\xdc\x95\x84\x1cH\xda\xa1(\xa9Y"\x80s\xde\x1a\xdc9\xa3dR\xb3\xa4\x8b\x11\xf5\x86;!\x0e\xe7\x12\x99\x8c\xa6\x0e!X\xc5\xd8C \xce\xdaF\x88Z\xd8\x05\xc4\x07\\U\xe3\x9c\x10\x04&gt;\xfc\xf0}\x8cG\x8e\x7f\xf5\xec\x1b\xdc&lt;l\xe8RD\x8f\x0eY:O]\x05\xbc\xf3\xc4\x18i\x96\r!x\x0e\x0f\x0fy\xe0\xc1\x07Y,\x17\xbc\xfd\xd6[lll0+4\xea\x93p\xbd+\x0c+\xe7\xcc\xc1\xfe&gt;\xcf&gt;\xf3\x03\xbe\xf1\xf5\xaf\xf3\xfd?\xf9.?\xfc\xe1\x0b\xec\xed\xee\x0e(\xb8fk\xa9\xa4\x14\x01ec2\xe1g\x9e~\x92O\xbc\xf7\t\xb6\xb6\xb6\xa9k\xa1\xaa\xad\xe9,\xaa\x96\xd8\xc7\x8e\xdc4h\x17!C\xc6\xc2\x9ajF\xbcC\xc0H}\x05\xc7\xf2!@\x8c\xb8\xba\xc6{\x8f\x92\xc9`9\x95FD\x93\xa1\xe7d\xb2Bl\rt\x15\xc9 \x8e$\x0e|\xc23\xb2\xdc\xcf)N T\x15\xd3\xc9\x8c\x87/\x9eg\x1cF\xfc\xde\xf7^\xe6\xfa\xd1\xc2\xfa\x95.\x92SdT\xd7 \x8e\x9c\x12)9R\x8c\\\xbf~\x9d\xef~\xeb\x9b\xb4\x8dA#\xc7\xd1\xf9\xbb}\x9d\x8cw\xf1o\xb8T3GG\x87|\xe3\x8f\xbf\xc6\xef}\xfewx\xfe\xb9gx\xe3\x8d7X.\x16\xa4\x94\xed\xe0Q\xda\x98H)\x01\xcal&lt;\xe2\xe7&gt;\xf4\x14?\xfe\xde\xc7Y\xdf9\xcdd&lt;\xc2{\xc1\x89\xe2\n\x1e\x95c\x87v\x11m:r\xeap"\xf8 \xa4\xac\x90\xc1;\x87\xab*r6\x88\x82\x14\xf1&gt;@\xedA#)\xba\xd2\x8e\xc9\x88xp\x13b\\\xa2"\xb8\xachJf|\xc9\xbc\\_D\xe4\\`C\x1fq\xaeB*\xeb\x11Ngk\x10*\xc6\xd5\x94\xd8*\x9f\xff\xfe\x0f\xd9k\x1a\xba$\x08\x10R\xb2\x08+\xf6\xdfQ\x95\x1b\xd7\xae\xf1\xbd\xef~\xd7\xc2`\xa1S\xff\xe8\x84\xd0\xdd\xbaN\xbca\xa5\x94\x99\x1f\xcd\xf9g\xbf\xfa+|\xe7\xdb\xdf\xa4\xeb:\xda\xa6!\xa5\x84h\x06,\xd9\xd5\x98\xf1\xe2\x18\x8f\x03?\xfe\xe4\x13\xfc\xc4\xd3\xefc6\x1d1\x9e\x8e\xa8B\xc0\x01Z\x12\xef\xd8\xb5h\xec\xd0e\x87\xe4\x84\xe4\x8c\xab\x03\xe4l\xad\x92\x92\xbck\x8a\x86\xa4\xe7\x84\xc6\xd6\n&gt;\x14\x04\xbc\x08I\x04\xcd\x8a\xc3h\xcb\xdeyRN\xe0\xc0\x13\x8a!d\xb2&amp;\x04A\xb2 \x9aI\xcd\x02\xf5\x01\x95\x0e\x97k\x08\x8e\xe0\x1d\xd3\xba"\xc8\x8c\xcb\xe7\xcf\xf0\x81\x83\x03\xbe\xf6\xca\xdb\xccc"e\xa5\xeb"u\xe5\x10\xdf\xf3\xce\x8c\xcc\xf8\xd6\x9bo\xd0u\x1d\xefy\xf2\xbd\xc4\x18\xef\xf6q\r\xd7\x896\xac\x9c3)E\xbe\xfe\xf5?\xe2\xd9g\x9f\xa1i\x1a\xda\xb6!\xc5l\x80\xa4f\x1c\xd6F\t\x95Py\xc7C\xf7\x9e\xe7\xc7\x9e|\x94zT1\x99\xadQ\x85`P\x01\t\x15;\xa0\x1c\x0b\xb0\x19&lt;R\x05b\xdb\xa2\xb1\xc1y\xc3\xa2\x14\x87x\x8f\x04\xc8\nN\x1d\xaer\x88\x02\x9a\x0c\x0ep\x82\xc3c\xa9S&amp;\x93\xc8\x80sb&lt;-U\xbc\x0b\x08\xa0\x9d\x01\xa7\x92e0\xf0\x98!;{0\x84\xaa\xe0i\x16\x1a7&amp;#\x1e\xbb\xb0\xcd\xfe\xb2\xe1;o\xde k\xa6M\x8a\x02!;\xbcs\x05\xe8uh\xce\xec\xde\xbe\xc5\xb5\xabW\x18\x95A\x8d\x93p\x9dx\xc3\xbay\xe3\x06_\xfb\xca\x97I\xe5i\xd4\xac@F\x94\x01\xdcD\x129G\xb6fc&gt;\xf4\xe0e\xceom0\x9d\x8c\rJ(\xa1RSF\xa4\xff\xdd\xe1\xad\xa5gF\x953\xa1\xaaq\x95\x03\'\x85\xf9\x90@\x1cU\x18\xe1\xb2B\xea\xec SD\n\xf9OTqY\x0c\xa1\xd7\x8c\xcfR\xf2"W\xa6\xa13`lS\xbaDR\xf3x^\r\xee\xea\xbaH\xce\xa9\x84\xe8\x80x\x87\x17aT\x07\xcelm\xf2\xfe{#W\x0f\x8exg\x7fa\xe1/\x1b\xf7K\x0b\xcd\xd59C\xf9\x9b\xa6\xe1\x8d\xd7_c\xb1XPU\xd5\xdd&gt;6\xe0\x04\x1b\x96\xaa\xd2\xb6-\x07\x07\x07\xdc\xbcq\xa3\xf4\xf9\xba\x92S\xd9\xc1\x04\xef\xe8\xbaH\x8a\x1d\xa3*\xf0\xc4\xe5K&lt;|\xefy&amp;\xb3)U=\xb6\xdcH\xf3\x10\x02\x8d\r\xaa\xa8\x13\xc4Uh\xd7\xe2\xaa\x8az2\x01J\xe8\xf3\x0e_\xbeG%\x9b\xe1\x92\x10\xa9!g\xb2\x0f\x88+\x1eIA\xbd\'\x13\xc1\x81d\x07\xb1%\'#\x0b\xf6XXV\x87T\x15\x92\xcd\xdb\xa5\x9c\xd0.\x92\xc5\xa1]\x87\xf7\x80fDjD\x95\xe0\x1d\xb3\xf1\x84s\x1b\xeb|\xf8\xfes\xfc\xc1\x0bo0o\xcc#\x82=\\V6X.\x95sbm\xb6\xce\xdd\xcf\xacV\xd7\t7\xac\x86\xa6i\xd8\xdd\xbd\x8ds\x06,\xe6\x9c\xc9\xc9\x10\xea6v\xb4MG\xce\x99\x8bgO\xf3\xe4\xfd\xf7\xb3\xb9\xb6F5\x1e\xe3}m^\'\x97\xf1-q\xe4\x94\xc9\xd8\xa0\x84x\x8f\x0fS\xf3.j\t\xb66\x19U;&gt;\xe7\x1c\xf8\xc2\x7f\x02$Cv\x0e![\xd5\x97\xa2y\r\xf1dU\\\x08H\x06\x91\n\\\xb6\xa1\x8c\x1c\xad\xf8\x0b\x15\x9a3b\xe9\x17\xea\x15Q\xc8]\x07\xe2\x88\xcb\x05R\x8d\x91,\x10\x1c\x0e{h\xd6\xa6S\x1e8\xb3\xc3k\xb7vy\xe1\x9d=\x92\xf6\x80HyS\x96\xee\xe1\xc4q\xe5\xca\xdb\xcc\xe7G\xcc\xd6\xd6N\x04\xa5\xe6\xc4\x1a\x16\xc0h4\xe6\xf5\xd7^\xe5\xe6\x8d\x9b\xa4lUV\'F\xf1\r&gt;\xd0t\xc6q\xda\x98\xcdx\xea\xa1\x07\xb8\xb0\xbd\xcdd2\xb1\xfc\x033&gt;\x0cH\x1f@F)\x7f\xf6\xd5\x88\x10jD \xc7\x0e\xba%\xae\x1aY\xce$J\x8e\x9d\xb1\x13P\xc0!R\xc0OU4Y%)*P0/Q\xcb\x07I\x19m#9F\xe6\xcb\x05\xa3\xba\xcf{,t\x8a\x0f\x85\x97\x05!9RVC\xf1\xdb\x96\x9c\xd4\xbc\x968\x82\xf3\xe4\xd1\x88mM\xbc\xef\xd29\xae\x1f\xb4\xec\x1eu}\xc7\xa84\xd6\x01\x11\xc6\xe3\t\x17\xef\xb9\x97[\xb7nq\xfa\xcc\xd9\xbb}l\xc0\t6,\xe3W)/\xbe\xf0&lt;\xfb\x07\xfb\x03\x87*\x95\x1c)ee\xb1l\xf0\xceq\xe9\xfc\x05\x9e\xb8\xe7"\xebk3B\xa8L\xf1%\xa7\xc2T\xc8\x90A\\)\xc3s\t \x19raB8\x94z\xb2\x89hBs\x87\xe6\xcez\x88\xceY\xbfQ2\xc4hp\x01\x80\xd4T&gt;\x90\xcb\xdf\t\xf6c\x84\x04\x88%\xfe\xde3\x01P%\xc5D\x8a\xf6\x9amj\xc8\xaaC\x01\x10,[\x03\x1c1u\xe4\xb6\xb0LE\xf0\xde\x13\xaa\x8a\x0b\x9b\x1b\\:\xb3\xcd\xe1\xf2\x1a*n\xe0\x9e\xd9}\xb2\n\xf6\xd4\xce)N\x9d:ubh4\'\xd6\xb0\x8c\x7f\xbe\xe0\xca\x95+\x96\xac\x8a\xb0\\,\x11\x11b\xceC\xa3v}:\xe5\xb1\xfb\xefekk\x8d\xe9tb\x00(\x82\xf3\xceF\xb9\x14\xf0\x90b\x87\xf3\x1e\xd4f\x02U\x8d\xfd\x10\xc63BU#)\xa3\xda\x99\x17Hb\xb9\x98\n\x9a,t:o\xe1\xcc\xc2\x9f\x90Sg\xa1\x16\xc1\x89\x90PH\t\xb2\x92\xba\x8e,\x16NU\x01\x97\xa1T\xa7Ua\xb1\xe6B\xc9\xd1\xac\x88\xfaA\xfa(\x93\x8dQ\x1a*\x10\x18\xd7#d\xaa&lt;yv\x87wn\xeeq{\xd1X\xbfQ\xc4\xbc\x97\xda\xb4P\xdb\xb5H)&lt;N\x82q\x9dX\xc3\x02h\xdb\x96\x14\x13UU\x1b\r\xd8\x06\xfeh\x9a\x86\x94\x13!x\xce\x9d\xd9\xe2\xf2=\xe7\xd9\xd8\xd8$T\xb5!\xdf\xdeC\xb6!\x08\xf3:\x18wJ\x9c\xe1N\xc1S\xd5cK\x98s\x04\x19!\xce\x17n\x94\x02\xc9\xf2\xb8l\xf8\x13\xdeY\xe8\x0b\x15\xce\\\x16\xce\x19\xd4\x90\x93\xb5z\x00\xc4G\xcc%\x1a\x9f\xdd9W\x98\x15J.`\xaa}78\x81\xba\n\xa4\x98\x88\xad\xb5\x97\xd49\xbc\xaf\xac#\xe0\x04\xf1\x01q\x9e\xaa\xaa9\xbb\xb5\xc1\xe5\xb3[\xec\xbdv\xd5\x9a\xdf\x18\x88\x0b\x10S\xcb\x8d27y\x12\xf2+8\xc1\x86%"\x84\x10H)\x11c\x01*\xc5\x92k\xc5n\xead4\xe2\xd2\xf9\xf3\xeclm2\x99\xcc\xa8\x82\xc7\x89\xd8a:!\xa8\x92s\x04\x04/\xde\x0c@@\x9c\xb3\xe4;\xa7\xc2\x972\xbc\xaak\x17fl)\x1a\x80\xaa\xc9\xaaP\x1f\x18\x98\n$\x9c\xf7\xb8\x0cN\x05-\xd6\x9es,\x08\xbb\x89\x8f\xf4Tfb2o&amp;\x82&amp;-\xb1K\x10\xe7\x01\xc5\xd7\x96\xec\xc7\xb6]\xd1mraU`\x04E\x1f\x02\x93\xc9\x98\xfb\xcel\xf1\xd6\xcd=\xae\x1f.\xc9\xfd\xe1\x89e\x937\xaf_\xe7`o\x8f\xcd\xcd\xad\x13a\\\'\xda\xb0\xba\xae\xa3\x8b\x91zT\xd36\xd6hN\xd1(%\x0e\xc7l:\xe1\xc2\xa93L\xea\xb1\x85\xc0\xc1\x00:p\x0e)\xcc)\xcd\xb9\xe4J\n\x1e\xb2&amp;4f+\xffSGN\x11\x17\x02\xce9\x9c\n)\x16\x03V\xc5!\xc5X\x12\xb9\x8d\xf8\xc9\x18\xe7&lt;B6C\xc9j\xc6\xa8\nI\xc9]\xb2\x01\xd6\x14\xcb +\xc5\x13\xa6!G\xcb9Qx:\xe6\xbd\xbc\xe0*{\x88\x9c\xf3\x88\x0b\xc6p.\xb1\\E\t\xc1\xb1\xbd6\xe1\xec\xe6\x94[\xf3\x86E\xdb1\xae\x82U\x89Y\x99\xce\xa6lnm\x9f\x880\x08V0\x9d\xc8K\x0b2\x0e\xcat:\x1b\xcal)\xbd\xb2\x9c\x95\xad\xf5\r\xb677M{\xaa\x84\r\x9cC\xca\x10j\xaf\x9f\xe0Cm\x14\x17\x11\xdc\xa8\xb2\xb6H\x8a\xa0\x11rD\x82\xc3\x05\x03\x16s\xec\xc8\xa95\x0e\x15Z\x90x-\n3j\xd4\x1aU$\x04\x9c\x1f\x99!\xa8"e*\x1agI\xbf\xf3\x81P\x8fq\xa1\xc2\x87\x8a0\x1e\x9bQ\x8e\n\x1b\x95L\x8a\x1d\xa9]\x90\x9b\x06W\x80U\xef\x9ca`9\x1b_\xb9\xc8\x06 0\x19\xd5l\xaf\xcf\xd8\x9aM\x8c\xf7\xa5\x86\xd4;1\x9e\xda\xc1\xfe\xfe\x10\x96\xef\xf6ub=\x16\xaaT\xa1b6[\xc7;O]UT!\xb0X\xccq\xcb\x86\xe9\xda\x8c{\xce\x9cac6C\x82\x19\x94jF\x1c\x86)%\x87q\xdc=\x0e%\xd1\x87\x19\xcb\xbbB-\xe6a\xa2\x92\xda\xd6\xc6\xaf\xca\x8f\x16\x1f@\xd2\x00\xae\xa6\x023\xa0\x90\xda\xc6Pv\xadA@\x1d\xe50K\xde\x15\x0c\xc0T\xcc\x83\x05\x1f\x88\x1a\x87\xfc.\xa5\x84\xaf\x02*\xe5Q\xc9\xdeB\xb7\x02\xc9\x06h\x153*U7\x84o/\x8e*\xd4\x9c\xde\\c\xed\xd6&gt;k\x8b\xd1\xf0\xb0eU\xae]\xbb\xca\xed[7\xd89}\x8a\xe9\xf4\xee\xd3gN\xaca)6(q\xee\xfcy\xbe\xf3m\x83\x18B\xf04\xcb%\xb3\xd9\x8c\xcd\xd9\x1a\xa7\xb6w\x98Lf\x04o\xde\xc6\xf9\x80\x13\xf3v6\x18\x01\x0e\x8fd\xb5\x8aO\xc6\xa0\xd1\xc2E\x17\x11\xf1\xf8z\x84zo\t\x7f\xb2\xe1\x06)}\xb8\x1c\x1b\xeb\xeb5Ks^\xb2\x1a\xc5\xd7\x98,\xb4:\xeb\xf6\xa9\xf7\x90\x8c\xf0G(\x7f\x87\xe5oN\xbd\x85pl"\xc7\x86~\xb2\xe5`\xde\x9b\x18\t\x82\xab\x84\x9c\x95\xac\x19\x17B\xc9\xdf,$\xfb\xaa\xa6\xce\xca\xa8\xaa\x98\x8eG\xacO:\x0e\x97\x8d\xf5&amp;\x15\xf6n\xdff\xf7\xf6m\xa6\x93\xe9]7*8\xc1\x86%"TU\xc5\xf9\x0b\xc6\xe7\x96\x92;\x8cF#RJ\xec\x9c\xdeam}\xdd\xbcS\x1f\x0f\n\x1dX\xb0\x96\x8d\xf8@N\x8dy\xa9P\xe3\xb27n:\x80\xcf 6\x95\xe3]`\xf5\xf8\x97\xeaQ\xc1\x95:.\x84\x8a\x1c\x8d\xab\x95u%\x1a"U@\x9d\x85\xc7\xbe\xaa\xec\xabOq\x1er"\x17\xda\x8c\t\x86\x08\x92\x93y@1\xd8c\x80\xcf\xc1\n\x80l\x89\xbf\xe6\x04\xd1!\x95/\xd0I6\xaf\xed=\xc1\t\xe3\xbab\xd9\x19\xdd\'\xab\x1aEG31E*W\xdf\xed\xe3;\xb9\x86\x05\x90r\xe6\xf0\xe0\xd0\xf0\x9f\xaa\x06,\x94\xe0&lt;\xdb\x9b\xdb\x06C\xa8aZF\xb6\x030\xaf\x91\xb2\x92\xdb\x06\x1f\x1c\x12\x04I:L\xcc\xa8&amp;\xf3&gt;!P\x05\x8fH0\x16\xa88R\x9f\x94\x03h\xc2Y=\x80\xa8\x90\x11\xb4\xeb\x06\x8cLR_\x18\xa8\x11\x00\x9d/a\x0c4\x0bdA\xa3\x8d\xd0S\xf8\xf46\x1d&amp;\x80G\x82\x94\x1c*\x92Eqb\xc6\x99VV\x0e)\xe1\\E\x99\xb9f\\\xd7\x8cB(RI\xc6\xe7w\xc5@EN\xce\xb4\xce\xc96\xac\x94\xd8\xdf\xdf3\xbaH]\xe3TY6\r\x93\xc9\x98\xf1t\x8a8\xb1\x1c\xa8\x00\xa8&gt;x$\xa9y\x89\xd8!.X\xdb\xc5\xb8+\xc6B@q\xce\x13$\x98L\x91\x9a\xb1\x89\xab\x8d\xc8W\x0c2w\x1dZ\xb2.!\xe2|\xc0\xfb@r\x1e\x15E\xbb\xbe=\xe4Q\xc9\x03&lt;\x90\x8bf\x03\xdd\xc2\xc8\x84\xd9&lt;\xa8*\xa8\xd8`Fo\xa8\x0e\x01\xef\xcd\xbb\xa5h&lt;+\xa1\x84F\x83E\x12\xc6\xb5\x17\x1fp\n\xd3P\xb16\x1d\xe3\xdc\xbe\r\xc9\x8a\xe9&lt;\xb4M\x8b\xf7\xce&gt;\xc3\t\xb8N\xc6\xbb\xf8\x9f\xb9\xaa\xaa\xe2\xcc\x993\x08BUY\xe7\x7f2\x9dq\xfe\xccYN\x9f\xbd\xc0\xb86x@TK{\xc6\r\xa3\xeen4\xb5\x83C\xed\xe0\xc5\xda:\xce9&lt;&amp;QD\x7f\xe0%\xa1\'&amp;C\xdb\xcbD\x8e\xa8%\xd9)\xaf\x92w_\xbbB\xb4k-l\xa9Z\xf0\xf5\x1e\xed\xdaa\xaa\xc7\x87`m\x9c\xd2\x16\xb2\x84\x1e\xb2Z\x83Z\xb3%\xfe\x14/[\xf9`\xad\x1e\xa1\xe4Y\x85\x1dQ\xa8\xc6V\x19*\xa3\xbabkT1\xae*\x16m\xc2;!\x97p\x1aK\x8b\xea$x\xad\x13mX\xde{6\xb7\xb6P\xa0\xf2\x9e\x94\x12\xb3\xe9\x94\xed\x9d\xd3\xe6\x1d\xda\x0e7\xae\xa8T\xa8\xb0P\xe6\x827#\x11\xa3\x05\x93\n\x1a\x8e7\x04=\x1b\x0eF\x8a\xe4hm\x9d\x9c\x13N}\xdf\xd5\x055D\xdd\xf5}B\xdc\x90\xa4\x8b\x80\xf4\xdc,1\xf03\xa7l|x\x1f\xc8\xb1%\xa6\xd6\x84H\x82X\x12\x9f\x1d\x9a\xa3y\xd22z\x88\x08\xea\x1c}r\xee\xc4z\x86"\x8a\x1b\xf08\xfbZ-^\xc9\xf9\xc0H\x1c\xdb\x9b\x1bL\xeb\xdb\xdc&lt;Z\xe0\xc5\xe3\xc5*\xe8\xcd\xcd\xcd\x13\xb3\x14\xe3D\x1b\x96\x14\xea/\xaat]\x87\xe6\xcch:CU9\xb8q\x83\xb5\xedu6\xa6S\xd6\xa6S\xaa*\x14\x90\xd4\x93S\x1a\xe8\xc5\xe6\xc0\x8c&amp;\x93\xda\xd6\xc2Pi\xc7\x18\x99\xcf\x0e\x0c\x85L\x19\xb2\x10\x8fV#\xba\xa5\x11\xec\x04g\xa6Y\xd7\xf8l\xc3\r\xea\x84\xdc\x9a\x16DB,oJ\t5\xe0\xbfP\xfc,W\x9aw\x91.*1\x19\x9f\xac-=\xc6Q(9\x99sx\xc0\xa3\xe0M\xc7TJ\xb5\x97\x15\x1b\xd9/\x9e\xab\xaa*v6\xd7\xd9\\\x9b\xf0\xe6\xed\x03\xc0z\x921%\x8e\x0e\x0f\x87\xb6\xd7\xdd\xbeN\xb4a\xe5\x9c\xd9\xdb\xdb\x03 v\x91\xd1\xa8\xe2\xcc\xce\x16)u\x88\x136\xd6\xd7\xd8\xdc\xd8\xa0\xaa&lt;8\x0f\x12\x8cY\xea|\xa1\x97\xc8\x908\xf7\x95\x1c\xe2\x8c!*\x9e\\\xd5\xa4e\x0b\xce\x93\x9bH\xdb\xb5tm\xcb2.q\xe2\tjs\x85\xa1 \xdf5\xady\x0f-\xe1\xca`N\xba\x94 \x05#\xfe\x95\x91\xfeN3m\x1b9j\x12{\xf3%\xfb\x87\x0bv\xdb%9f\xa6\xe3\x1a\xe7\x03\x1b\xa1bTC\x15&lt;U\xf0x\x07U\xf2\x05\xe7r\x85\x91\xe1lt\xac\x18L\xf0\x9e\x8d\xe9\x1a\xe7\xb66y\xf1\xca\xad\xa1`I)q\xf3\xc6ur\xceC\x0f\xf1n^\'\xda\xb0\x04\xa8kk@7\xcd\x82\xf5\xb5)A\x84\x1b\xb7o\xb3~\xfa\x14\xa7\xb67\xa9\xbd+\xb2\xda\x86E9\xe7\xad\x9d"J\xce\x18\xadX\xcd+\xb9\xe0HM\xcb\xa2Y\xd0\xe5L\x13;\x96GKn\xee\x1fr\xf3\xd6-\xe6\xcb#4G\xc6NX_\xdfd}:\xa1r0\t\x81\x90@\xb3\xc7\x87\x8a\xda\x05\xb2\xeb\x88N\x88\xa2t\xa9!6J\x10\x81\x08ML\xcc\xdb\x96\xc3\xf9\x82\xeb\xf3\x86\xdd\x83#\xf6\x0e\x0e9l\x1a\x8e\xa2\x89\xdez\xef\x99\x8e\x02\xeb\xa3\x8a\x9d\xd9\x84\xd3\xebS\xea:\xe0\xc5S\xa7H\xa8\x02\xd5x\x028\xc3\xb5\x9c\x0eT"\xef&lt;gw\xb6\xd9\x9c]\xe5`\xd1\xd0\xa5D\xecZ^{\xf5\xd5\x01\x96\xb9\xdb\xd7\x895,\xe9\xf9PN\xc81\xb2\x98\xcfI\x9b\x9b\xdc\xda\xdb%\xa6\xcc\xd8;f\xe3\x11\xe2M&gt;HJ\xfe\x83(\xce{\xa3\xa5(\xc4\x94\taDV\xa5k;\x16\xcb\x85\xc9c\xef\xddbww\x8fk\xb7nr\xe3\xd6m\x8e\xe6K\xbc\x17FU`V\x05\xda\xb6!\xb6\xebL\xa7S\x18\x8d\xa9%\xe2\xb2g\x1c\x82\xc1\x9e\xceAU!\xb9\xc5\xb5\x8e\xd8\xcc\x91\xaa&amp;\'X.\x17,\x9b\x86\x83f\xc9A\x91\xfc\xf6\xce\xc2\xa5\x17\xc5\xd7F\x9f\xa9\x83\xc7\x05G\x1b;n\x1d\x1e0\xaak\xc6UE\xed&lt;\xe3\xc9\x18\r5\xa1\n\x96\xfa\x15\xfd\x070|mc4\xb1?\x8b\xf1\xecAy\xe9\xa5\x17\x88\xb1\xb3B\xe7?!\xef\xff\xfa\xab\x9f~\xde\xdf\xdb\'\xa6h\x8c\x045r_.e\xf9\xc8{|\xa8\xf1R\xc6\xd9\xc5#@\xd2d\xf3}ue&lt;(\xe7H]\xc7\xbci88\x9as{\xf7\x16{{\xbb\xbc\xf5\xf6\xdb\xdc\xda\xbb\x85w\x81\xd9d\x84jd6\x191\x1bU\x8cF\x15"\x99*\x18+\xc2\x8djK\xc6\xbd\'\xe7\x96\x98\x95\xaa\x9e\xa0]\x8b\x17\xe3yi\xd7\xd1\xc6H\xdb.h\x9a\x8ef\xbe\x84\x9c\x19\xd5\x96tO&amp;\x96\xdb\x8dF\x15\xd3\xaa\xa6\xf6\xc6Lh\xbb\xc8|\xb9\xa4Y.H13\xf7\x8euq\xa8\xaf\x98\x86\n\xdfc\x14\xd927q\x06\x1e/\xbb\x8e6\xa5"e\xe4\xb8}\xeb\x16m\xd3\x14\xcc\xef\xee^\'\xd6\xb0\xc0\xbc\xd6lfx\xd5db\x9a\xa2\x02\xc6\xc5\xf2fDNAB(\xc9\xb8\xdah:VI9\xef\x81L\x8c\x89E\xd3\xb1l#\xaf\xbf\xf9\x16\xfb{\xd7\x10\x85s\xdb\x1b\xdc{f\xa3\x8c%(\xe4\x96\xb4\\\xa0\nu\xa5\x8c\x9c\xa2\xcb9\x8c\xa6$\r\xe8h\x8a\x1bM\xa9\xfd\x84\xa9w\xc4\xf9!\xa1\x9e\xc2\xb2a\x99\x16$M\xb4\xed\x92\x83\xe5\x9c\xdb\xfb\x0b\x16\xcb\xd6\x08\x7fU xG]M\x18\xd7\x81\xba\xf2\x98\x02R\xc2\xe1\x18\x05\xa1\x0e\x8e\xa6\xcb\xa4l\xa0\xeb|1\x071\xd1\x92\xe9\xb8\xd0\x9b\r\xaf\x80\x9c\xa9\xbd\xa7\xf4\xc6\x07\x0e\xea#\x8f&gt;&gt;\xec\xea\xb9\xdb\xd7\x895,)\xd4\xdc\xb3\xe7\xce\x11| I"kf\xd9%\xc6U\xa1\x1fSj\xf7\xa4h\x10R\x190M)\xda\x14s\xb2\xd9\xc3e\xd3\xb0wp\xc0\xd1\xe1\x01\xa3\xc9\x84\xb3\xd59\xc6\x01\x9c6H\x8eT\xce\xa1qI\xbb\x8c\xb4\xc9\xb3\xe8"\xb9Ypx\xb8\x8f\x8a\xc7I\xa0\x1eO\xd9\xbep/\xdb\xa7/\xd8\xe0h;G} \x9a\xbc\x8c\xb5S\x9a\x96\xa3\xc5\x82\xb7n\xecq\xed`\tdj\x810\xae\xf1\xf5\x88eL4\x9d%\xef\xeb\xd31!x\x02\x0e\xd5\x96\xa0\r\xea\x85\x06P\x0co\xb3\xbet.a\xcd$/\x01P\xc5\xa9%\xe9\xaa\xa6l\xd3\x1509v\x1d!T\xff)\x14\xfe\xdb\xae\xd9tF.\xa86\x00R\x08t\xda\xd3FJ\x1eV\x84@T\xecF;\xb1\x9b\xdd4\x0b\x0e\xe6G$M\xd4U`kc\x03\xd1\x19^\x1bHeL&gt;+m3g1\x9fsx0g\xde\xb48\t\xe4\x1cic\xc7\xb2\xe9h\xb2cr{\x9f\xf5\xd3\xe79\xbb\xb5\x8e+\x93\xd2\x9a\x13I2\xd1\t\xad\xc0\x8d\xc3\x05\xaf]\xdf\xe5\xb0\xed\x90\xe0\xac\x01\xbe\xbf@\xea\x9a\\`\x8d\xca\x07\x02\x99qp\x9c\xdf\xd9\xe0\xcc\xc6\x94\xd1x\x06\xb1\xa5I-\xa9\xeb\x10\x1c\xc994O\xd0.\xe1\n\xf7J\xb2\x92\xbc\xe1a\x953\x9av\xe5\xac\xb1\xfd\xf6[or\xb0\xbf\xcfh4\xb6\xd4\xe0.^\'\xde\xb0rayzgD8\x15a&lt;\x99\x15\x9aLaf\xf6\xd38b(\xb4\x88\xc1\x0b\xed|A\xd3.H\xa5\xbf\xe7G5\xb9Y\xe2$\xe0rb\xd9$n\xdc\xde\xe5\xd57\xae\xf2\xce\x8d\xeb\xec\xcf\xe7\xcc\x9b%\x958\xc6\xce1\xf5\xc2lb\xf3\x84\xcb\xb6c\x7f\xde\xf2\xca+\xafr\xea\xc9\xf7\x14\xae\x97\x10;[F\x90c\xa4m\x1an\xef\x1f2_.\x88Qi\x1a\x9b&amp;\xaa\xc2\x88\xdb\x87\rMn\xe8r\xa6\xae\x03\xf3\xa39\xeb\xe31W\x0e\x16\x9c\x9e\x8d\xb9gk\xca\xb9SkL&amp;\x9e\xce\xb5\x08\x82w\x8a\xc4\x96\\\x8d\x0c\xe2\xd0\x84S\xd3\xe8\x12\xf1\x8c\xcb\xa8\x98\x17!\x8bp\xeb\xc6\rb\x19\xda\xb8\xdb\xd7\x897\xac*\x04rJ\xd4\xa1\x02\xec\tE\x95.\xe6BWV\xee\xa0\xb6eEK\xb2\x9eS\xb2\x91\xad~"fT\xe1D\x89\xcd\x92\xb7^{\x8d\xef\xbd\xf2*/\xbe\xf16W\xf7\x0el\x0068\xc6\x95cq\xb4\xcf\x85\x8dM&lt;\x8ef\x7f\x8e\xe4L\xe5\x85\xe980\xdf\xdb#u\x91\x10\x04\xc4\x06Q\xf3QoX&amp;\xaa\xeb\x9dP\xd5\x9e\x9c\rW\x9bL\xa7\\\xdd=`&lt;[#\xe4LL\x1d.\x04\x9a\xac\xec\x1d.\x98\xcf\x97\xe4\x9c\x88\xa9\xe3\xfc\xe9-\xea\xba\x02\x15j\xef\xf0dR\xb74\x07\x14\x9cMS\xe7\n_\x94\xa2\r\xb1W\xbc\x08\xedb\xce\x8b\xcf\xfc\x80\xf3\x17\xee\xb9\xdb\xc7v\x82\r\xab\x889_\xbcp\x81S[\x1b\xcc\xe7\xadm\xe5R\xa5\xf66\xea^W\xc1\xe8\'h\xe9\xc1\xf5\xf4\x15\x9bVicC\xdb5\xc4\x94p\x92\xe8\x9a\x96xp\xc8K\xcf\xbd\xc8W\xbf\xf7=n6\x1d\xe7\xef\x7f\x94\xd3\xef9\xcb\xde\xdeu^}\xee\xdbT.1\x9d\x8e\xb9\xe7\xfc\x05\xaan\xc1\xf5\x1b\xb7\xa8Gc\xb6\xb67\xd8\\\xdfd\xec2\xed|\x8e\x1b9\xbc\x0b\xa8H\xe1f9\xb28\x82\x13\xd6\xc6\x81eTn_\xdfgm6\xe5\xf4\xd6&amp;\xef\xcc\x97\x1c\x1c\xec\xd3v\x11_\x07*\xef\xd9\x9e\xce\xb8\x7fm\xca\x0bo\xbd\xc3+\xef\xdc\xa0M\x9b\x00\x9cZ\x1f\x1b5Z\x1c\xb5\x9fP\x85\x80\xe6\x0eI\x01\xa3\xbfZ\x83Z\xcbg\x0f\xe2\xa8\x02\x9c\xdd\xd9acc\xe3Dx\xac\x93\x81\xa6\xfd\xc8\xd5o\xf1j\x17\x0bvvN\xf1\xbf\xf9\xcb\x7f\x15\xb2\x0e\xdb%\xe6Gs\xba\xce\xa4\x19)\xf9\x94\x93"\x92\x91L\x99o\xb9\\p\xb0w\x8b\xe5rnS9\xce\xd3\xed\xed\xf2\xcd\xaf\x7f\x9d\xaf|\xfb\xdb\\\xbf\xbd\xcb\x13\x8f&lt;\xc1\xc7&gt;\xf6\xd3\xcco]cy\xebm6&amp;\x81\xd9t\xcc(TL\x830r\xca\xe6t\xc4\xb8rlnop\xea\xfc\x16;\xa7\xb6\xc9@l\xa3\xed\xdd)\xf4g\xcd\x19\\`:\xae\x98\xd4\x81\xb5I\xcd\xa5s[\x9cZ\x1b\xd3\xee^\xe7\xfe\t&lt;\xbc3\xe1\x91s\x9b\xdc\xbb5\xe3\xdc\xb4\xe6\xfc\xd8\xe1\xbb\x05\x0fl\x8e9\xbb1\xa1m[^\xbf~\x8b\xbdyC\x97\x95\xf9\xdc$/\x8d\x9b\xd5A!\x0b\xf6\x9c\xff\x9d\xd9\xda@C\xf3\xc0\xf9\xb3g\xb9\xe7\xdeK\xd6\n\xbb\xcb*\xeb\'\xd3c\xa9\xf2\xf2\xb7\xbe\xc93\xff\xea\x0f8X,\x99\xb7\x1d&gt;u\xa4\xdc!T\xa8\xc0d:\xc1\x88\'\xae\x0c\x97\x16\xceT\x8e\xa4vI\xf0\xc2\xda\xfa\xba\x85N\'\x1c\xdd\xb8\xc6\xf7\xbe\xf5\x1d^}\xf3\n\xe7/\\\xe4\xf1\xf7l\x12b\xe4\xe8\xf9/\xf3\xf0\x1a\x1c\xb8)~kDE\xa6\x12\xc5\xe5%\xaev\x8c\xb6\xd6q\xa1bsm\x9d\xb5\xf1\x1a\x9b\x9b\xdbT\xa3\x11\xc1\x0b\x1c\xedAg\xfc\xad\\\x86\'&amp;\xbeb\xad\xaeXd3v\'\x9eQ]\xb1\xee\x04\xe7\x94Pf\x1bm\x80\xc7\x86Y\xc7\xd3\x19\x9b\x0e\x16]&amp;i\xe6\xd6\xe1\x11\xeb]`c\x14\x98\xef\xedS\xe3\xf1cl\x9ePm\xbc\xdf\xe7\xcc\xe6dL\xe5\x1cA \x88\xf0\xfas\xcf\xf0w\xfe\x9b\xff+\x7f\xed\xff\xf4\x7f\xe6\xb1\x0f}\xb44\xe3\xef\x8e\xf7:q\x86\xa5\xaa,\x0e\x0e\xd8}\xe5%\xf2\xd1\x82\xf6\xe0\x80\xa3\xbd]&gt;z\xefy\xbe~\xe5\x06\xea&lt;;\x9b\x9bEt?\x14vh\xc0I\x80ld\xbb\xa8\x89\xe5\xed\xab\xb6\x82D\xe1\xf0\xe0\x80k\xef\xbc\xcdtk\x9d\x0f\xec\xac\x13|\xc5hm\x8b\xdc5h\xd7\xb09v\xc4\xb5\x1aG\xa4Y\xce\x891\x924\xd35\x0bb\x17\xa9\'\xebl\xcf6\xd8\x18M\x19\x87\n\xc96\x12\xe6BMv\x81P\x8d\x08\xa3)n\x1e\xa9\xab\x11;\xa31\xb7\xdb\x96.Bl\x96\xe4\xb6e2\x19S\x8d\x02\x95&amp;D\x85\x98\x81l=H\x82C\x05\xc6c[cG\xd71rB-\x81\xf1hB\xbblA\x13\xa3\xa9G\xba\xce\x84Jrf:\xa9p\x9aIYX\xabk\xd6\xc9\\\xfb\xe1\xf3\xfc\xd1?\xfde.=\xfc(k\xdb;w\xed\x1cO\x9ca\x01\xec\xbd\xfe\n\xcbg\x9fEo\xecr\xee\xe2\x05\xb6\xd77\xe8\xf4^\xfc\xe9\xeb\xbc\xb3\xbf_\x84\xf6}\x99\x88)8\x96$\xba\xd2\x14\x0e\xbef4]\xa7\xbdy\x95\xc5\xc1\x111)\x1b[\xdbL&amp;#*\xefH\xcd\x92\x94!\x87\x11\xd1g\xb4\x12\xa2\xed\x06\xc0\xc9\x84\xa3\xa3#\x9a\xbd\x03\x9a\xe5\x82\xc9\xe6\x0e\xe7/\xdc\xcb\xe9\x8dM\xa6\xeb\xeb\xd4\xe3\xb1\xa9\xff\x89G|\x85\x13OU\x8d\xa8\xeb\xc8h\xd4\xb2l[\xc6\xe3)\xdbE\x1f~_\x96\xa4h[\xc2\x1c\x15\xf5\xb8&amp;xO\x1d*\x9b\xc8)\xfa\xb8I\x1c\xb1\x0c\xd0\x8a\xaf\xa9\x9d0\xad\x02\xe3\x10\x08\xe3\xda&amp;\x7f\xc4\xd9\x94w\xa1MO\xc6cB\x15\x8893\r\x15\x8f\x9d:\xc5\xd1\xc1&gt;\xd7\x9f\xfd&gt;\xbbo\xbf\xf5\x9f\x0c\xeb\xf8%\xc0\xe1[\xafq\xf4\xd2\xf3(3F\xf7\x8f9s\xe6\x1cZ\x05N]\xba\x9f\xef\xbd\xf8"o^\xbd\xca\xfa\xfa\x9a\xd1R\xca,`N\x18\x9f\xbc]\xd0\x1d\x1e\xb2\xb8}\x1d\x01\xa6\xeb\x1b\xd4\xed\x82\xd1\xe6\x16"\x9e\xd8.\xd0\xaa\xb2\x1c-g\x92v\xb4\xd8\xcc`\xb3\\rx\xb8O\xbb\xb4\xcd\xaa\xa7\xcf]\xe4\xdc\x85{\xd9\xd9&lt;\xcdt:\xa3^\xdb4D_\xbc!\xfe\xce\xa31\x19.\xa5\xc28T\x1c:\x0f\xe2\x99\x8d\xa6\x8c\xc5\x10\xf2\xfdECJ\x99\x18[\x0e\x0f;j\'\x8c\xeb)\xc9\x8b)4;G\xd2\xcc\xc8y&amp;\xd3\x11U]\x15\xc8\xc3^K\xb2\x16\t\xef\x12\xfa\x15\xd0\xccl6c6\x9b\xd0,\x97&lt;\xbc\xb3\xc3\xa6\xf3l\xc6\x8e\xe6\xf0\x80\xb4\\\xdc\xd5s&lt;q\x86\x95R&amp;\xde\xdcE\x9b\x88\x9fxH\x8ez\xb6\x0e\xe3\x80K\x89\x8d\xd9\xcc6c\x05[n\xa9R\x19A/g\x13I\x9b\x80w\x01\xe7=]s\x80,\xf7\xa8\xbc\xa0\xcb=\x96G\r]RD\xbc\x85\xba\xb6a~\xb0K\xd3,\x88]K\xec:\x9c\xf3\xaco\x9fb2\xaa9\xb3s\x8e\xd9\xda&amp;\x93\xe9&amp;\xf5djD\xbe\xa2\x19\xe1\x04r\x8cTkS\xe2\xf5}r\x8c\x04q\xd4uE\x9b\x13\xa1\xae\xc1e&amp;Ud\xea={mG\xe5Gx\xe7H\xb1\xa3r&amp;\x7f\x945\x13D\x98Mg\x04/\x8c\x83c6\x19\x13\xc2\xc8\xf4\xb8\x92\x16\xfe\x98/|ESi.j \x8c\xea\x9a\x91\xc0\xd9\xf5)\xdd\xf5\xeb\x8cUY\x1b\x8f\x19\xcf\xee\xae4\xf7\x893,UE\x92\xe22H\x97\xd0\xc5\x82jm\x86\x9b\x8c\xe1\xe8\x80S;\xdbl\xec\xde$\xc5\xce\xb8\xe4)\x17\xd5\xe42\\\x9al\x9a&amp;\x84\x80\xc8\x94zR#@sp\x93\xday\x16\xf3%\xcd\xe1\x9c\xec\x1c\xae\xac\xf2\x1dO&amp;\xe4\xaab\xe4\x9cm\xae\x1fOX\x9b\xad3\x99\xce\xa8\xeau|=.\x87k\xabL$\x83\xa6\x16I]\x19#3O\xe2\xbdgT\x8dmF\xd1\x0b)\x19X\xb9\x892\xab&lt;\x8d\x9aTx\x0cc\xaa\xca\xe31~U\x15**/\x04\x17\xa8\xea\xda$&amp;\x15\xb2wdWTM|e\xc2\xb6e`\xc2\xd8\xa7\xb6Gq}\xb4\xc6\xa4\x0c\x9a\xd4\xc1Sol0\xd9\xdc\xba\xab\xe7x\xe2\x0cKD\xa0\xaa\x8c\x9b.b\x03X\x9aHMKppag\x9b\xab{;4\x8b9U\x99\x05L8$g\x90\x8c\xf3\x81z\xec\xc9\xb1%\xc4\n\x11\xeb\xfeW~\xc4r\xff&amp;^&lt;\x01\xa5\x9d\x1f\x924\x83/3\x81\x93\x9a\x11\x9e\xb5\xd1\x14q\x99\xe9l\x03?\x9a\x10\xc6k\xb8z\x8a\x0b\x95\x8d\xc0\x8bG\xbaH\xce\x1dt\xd6~1\x015{\xef\xd3\xc9\x04]*1\xb5E\'\xd5\x86V+\xef\x19k\xa6m;\x9b\xc2Q\xc1\x05\x87\x17\x87\x17eT\x8f\xa9\xab\xdar(\xcaD5\xe6\xadr\xc6\xfa\x83U\x8d:\x93&lt;\x02\xa8\xc4\xb1\x16\x1c\x97\'\x13\xa6UE\xe3&lt;\x92Z\xd6wN1\x9a\xcd\xee\xea9\x9e8\xc3r\xde\xe1\xc6#\xac\x19h\xb8M\xda\xbfMs\xb8 l\xcc\x18\xd5\x15\x0f\x9d;\xcf\xbcmL\xfc"\xdb\xd6\x08\xe7e\xe8\x8feU\xc4U\xb8\xba\x06l\xb0TU\xf1\xa3\tU=!8\x0fk3\xda\xc5\x01\xb3h\xfdE\x1fj|V\xeajl\xefc4\xc2\x8f\xa7\x84\xd9&amp;\xf8\x80\xb1\x89\xd5\xb8N!\xa0M&amp;6s\xdbP\x11\xbc%\xd1\x1aq"T\xa31i\x91\xc9j\x9es\xe4\x1c.g\xeb/\x8eG\xb4\xd1\x86em\x88\xbf\xd0\xa7s"u-U\x18\x15\t%\xa3V\xe3\x0b\xcf\xccQh\xcb~`\x93\xaeMF&lt;yv\x9b\x8d6\xe2\xc5\xe4\x8f\x88\xca\xec\xf4\x19|}wY\x0e\'\xce\xb0\x00\xaa\xb55\xfc\xb8F\x9b\xc8x:B\xe7\x87\xd0\xb4\xe0,o\xd8\x9aN\x87\xf5\x1e\xe2M\xeb\x00\xd1\x81\xec\'\xde\xa3\x85\xfc\x07\xd9t\xdc]f\xb6q\x81\xd8\x1c\xe0\xf0\xc4n\x81\x0b\x81\xb8\\\x94\xb2\xdfz\x82\xa1\x1a[\x88\x15S\x84\x89\xb1\x83$\x10\x13\xe2\xc1\x85\xdaDq\xbbE\x91\n\xc4\xb4\x1f\xbc\'\x04%%%T\x15\xba\xd0\xd2\xb7\xb4j\xce;\xa5\xf2c2\xc9\xf4\x1cJ\x1f*\x93\xc9\x02\xdeD\xbd\x89\xcd\x82\x10*RV\x92f|\x98X\x03&gt;\xd8\xec\xe3 \xcb\xe4\x1c\xeb\xe3\x9a\xc9\xda\x14\x9d/q\xe2\x08\xa3\n\xda\x05\x93\x9d\x1d\x93\x1d\xb8\x8b\x08\xfc\x893,\x11!L\xa6T\xb31y~\xc4h\x1a\xf0\x93)\x1b\xa7\xce\xb3\xe8\x16\xdc~\xe3\x15fg\xefAFE\n\xbb\xe7\xb6\x97\x11x\x15A*\x8f`\x95[\xaf\xab\x90\x93\r\x8aJ\x98 &gt;\x11DH\xa9B\xe3J\xcf\xdd\xd7#\xe3W\xa9\x81\xaa\xed\xe2\x90\xa6IH\x18\xe3\xba\x96\xd1\xfa:n2"H /\x8f\x00E*\x8f\x97@r\xfd\xe4ODFc\x9cxb\x1bq\x0e\xa6\x931U5\x1a\xa4\xc3E\xfb%N\x86\x98S\x10\xfc\xec k,\x03\xb8\x0e\xf1U\xd9\x7f(\x03\xe2.R\xb6\x8cy</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>793051</v>
+        <v>791416</v>
       </c>
       <c r="B16" t="n">
-        <v>1962</v>
+        <v>1984</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thiago Carpini</t>
-        </is>
+          <t>Cláudio Tencati</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9czTXtRaw profile type xmp\x00\x00H\x89\x95VY\xb2\xa30\x0c\xfc\xd7)\xde\x11l\xc9\x92\xe08\x14\xcb\xdfT\xcd\xe7\x1c\xff\xb5\x0c\t\x04\x080\xa1b6-\xadv\xcb\x86\xfe\xfd\xf9K?\xf8e.\x99\xa4\xf7F:ol\xf0d\x83\xa9\x17\xcb\x9c\xe2\xdez\x1b]\xe2\x9d\x0c\xec\x96\xad\xd8dl*\xdd\xfc\xfcm=\xb1\xcbH\xa9\xe3\xf4y 4\xc3\xc9\xa4S.\xa5\xd8.\xec\xfc.B7^p$\xe9\x10j"\xaf?\x1e\x1dV&lt;\xda\x04C\xe7I\xb2\xb4q\xe0*\tcd\x8c\xc3\x1c\x04g\xf1\x16a\x81\xc6\x1b\x1e"\x01\x0b\x05\xac\xd4]\xe1\x02(u1\xc1}\xeb\t\xee-J\x1c\x81sy\x8f\xa2\xd9\x80\x08u\x06P\xf6c\xb0mIp\x92cA\x08\xac\x08\xd8\xf3H\xafb\xc2\x10\xa3\xc2Q\x83\xc6\x80\x0e\xc8(\x92GY\x08=\xc3]\x13t^\x08pK8\x9f\x9b\xbd\xcb\xcb\xd6\x03\xf9\x85\r\x01to\xed\xab\x8cz\x97m4\x8f2*\x95`\xc8\x0c\xb4j\x84\n\\E\xab\r\xd7Z2\\\x1c\x7fAi\x9c\xc2\x18\xa3\xe1\x15\xb4\x82\x82\x12\x0f\xc8\xc5\xa2\xd2\xf3\xf4&amp;\x15\t\xcf1\x85\r\xddC\x9f\xf9\x0b\x1e\xaeh\xa0m\xce\xf3\x89~&amp;\x0f\xba\xd3\xc7SyP\xc9U\x17\x08f|\xd4IU\xedh\x1b\x9b\x08\xbc\xa4\x1cMp\x1e`\x85&gt;\xa4\xb7V\xd2w\xad|$\x0b&gt;\xa1\xb0\xbd%\xed\xdaTPo\xbe\xd6\xd4"\x97\xe5\x0ekFF\xdd\xe0H\xb588\xc2\\\xa00\xe5J\xf7T\x85\x8f\xa0\x0f1JL\xbf\x06\x03\x181\xf9PN\xa8\xa7\xf0\x80\xb3`\xc4u\xcc\xea\xd1m\xeb5\'\xa2\xcbL\xea\xa0\xbe\xb4s\x12\xcb\x08\x9b#\x05\xae\x1c\x9a\xcf(\xcdE\x91\xb0\x80l8\xa4\xfa\xb0HS\x1ff\x88/&amp;&gt;\xd0e\xe4T\x81\xf2\xb16\x1d\x91m\xd2\xa4\x8en\xeb\xc7J\xb6`\xd2\xda4\x0c\xc5*\x02\xcf\xf8\x1cW\n\x08\xb3\xb2\xbf\xb9\xde\xd3\xac\xd1\x9b\x8aii\xe8=gA\xf5!\xe8j\xb8\xda\x9d\xf7#=\xeb\xed{\x95\xd1\xa1\xb0S\xdd\xeeC\x1e\xdb\x9b\x9e\xf7\xf7u{\xd3\xf3\xfe\xf6t\xbe\xa3\xcd\x8dM\xeb\x0e\xbav\xf3\xec\xb24\xb3|o\xe6%4\xe8p%\x00mb\xf5\xc5Z\xdc\xd9\x14\xabo,\xbe\xa5\xf5\xceq_y\xd9\x98\xaf\xd6\xfb\xc0tG\xe2S\x0e\xe9~\x0f}\xc6!\xbd\xbeD\xbe\xaf\x8e\'\x1c6\xe8\xfd\xf4\xb9 \x9e\x7f\x8d\xcc\xa1\xb7\x0b\x06\x8a\x0f\x95\xe3\xe8\xc1\xa6\xc4\xde\xe7\xd8\xed*-\xd5\x9a\xbe\x9b\xff\x9f$i\xa5s\xefv\xd3.\xf5\xdbi\xf5\xa3\x9d\xd9\xe1\xeb\r\xd5\xff\x02\xc2;;\xf2^\xbe\x97\xd2\x00\x00v\xf5IDATx\xda\xdc\xfdy\xb3e\xe7u\xde\t\xfe\xdei\xef3\xdc)G\xcc\x00I\x91\xd4`Q\x12-Yv\xb5\xdbm\xbb\xcb.w9\xe4\xf0\xec\x88\x8a\x8e\xe8\xe8O\xd0\x9f\xc1\x9f\xa4\xff\xe9\xa8py*\xbb\xcb\xb6dY\x83%k\xb0\x06\xda\xa4Dq\x00\t\x90\x98s\xce;\x9ca\x0f\xef\xb0\xfa\x8f\xf5\xeeso&amp;2\x81\x04\x08\x80`\x1f2\x01\xe4\xb9\xf7\x9c\xb3\xcf\xdek\xaf\xe1Y\xcfz\x96\x11\x11\xe1G\xfa!O\xf0\xbcy\x9f\xdf7\xef\xf3^ "\xbb\x1f\x0b\xf2\xae\xf74\xd3\xfb\x18\xfd\xb71\x17\xdf\xfb\xe1\xf75|\xf0\xc7\x87y\xcd\x0f\xef\xe1\x7f\xd8\x07\xf0\xe1\x1f\xf2!\x7f\xf6\xb8\xdf\xd7\x0b\xf7\xa8\xfb\xcc\x18\xc3\xbb/\xacy\xd7k/\xfe\x8e\xbe\x8d\xec~\xc7\x98G\x19\x86\xf0\xe4\x063\xbd\xd7\x8f\x86\x81\x99\x1fM\x8f\xf5A\x8d\xea\xf1\x1e\xeb\xdd\xdf^\x1e\xf1\xbc\x90s"\xa7H\xce\x89R29\x17D\x04c-\xc6\x18\xbc\xf7\x04\x1fp&gt;`\xadE\xa4\xfa0\xf3\xe8\xe3x\xdc\xf3\xef\xff\xf8\xd10\xac\x1fA\x8f\xf5$\xa1\x0f\xde7\xfc\xc9\x14\xd2\x1e2"\xa3O\xe4\x9cH)\x12\xc7\x81\xbe[\xb3\xd9\x9c\xb0&gt;=\xa6\xefV\xf4C\xc7v\xdb1\xc4\x91\xd9bI\x13&lt;\xcb\xf9&gt;\x07\x87\x97\xd9\xdf\xbf\xc4|\xb9O\xdb.\xb1\xce\xe3\x9c\xc7Z\x8b1vw\x1c\xc6\x98\x07&gt;\xf3\xdd\xce\xecqa|\xfa\xd9\xa7\xdf\xb8~\x84\x0c\xeb\xc3\x84&gt;y\xec\xd3"\x02F\xff]J!\xe7D\x8c=)\xf5\xc48pvz\x9f{wop\xf7\xf6\r\xee\xde\xb8\xc9\xd9j\xc5\xd9\xe9)\xa5$\xc61rv\xb6a\xc8\x91\xa3K\xfb,gs\xbcm\x98\xb5\x0b\x96{\xfb\x1c]\xbe\xc23\xcf\xbd\xc0\xfe\xc1\x01\x07G\x9788\xb8\xcc|q@\x08-\xc6\xaa\xa1\x01\x98\x9a\x93MF\xa6\xe9\xd9d8r\xe1;\xfc\xe8\x19\xd7\x8fP(\x94\'|\xee1\xaf\x96\x87_c\x10\xc9t\xdb3\xee\xdd}\x87\xdb\xb7\xde\xe6\xc6;\xafrvv\xca0\x8c\xacN\xcf8;=!\x8f\x91\x9c`\x8c\x89\x18#cLl\xb6#\xc3\x10\x99\xcf\x02\xfb\xcb9\xc1\xb7X\xe34\xfc\x19\x83\x0b\x96v\xd1\xe0\x9ce6\x9bs\xe5\xcaU\x9e}\xfe9\x9ey\xf69\xae]\x7f\x8e\xab\xd7_\xc0\x879\xc6\xd8\x9a\xd3I\xf5Z\x9a\xcb\x9d{\xb0\xf7\xf2\\\x8f{\xee\xd3\xf1\xf8\x110\xac\'\xf0T\x8f\xc8k\x1fL\x9e\xa7\xa4\\=D\xc9#\x9b\xd5}\xee\xdc~\x937\xde\xf8\x0eo\xbe\xf6}6\xab5\xab\xb3\x13NO\xd7\x0c\x830\x0c\x994\xf6X[\xf0M\xc0X\xcf\xb6\xeb\xe9\xfa\x81\x9c\x04k,\xdeB\xdb\xcch\xfc\x0ck\x0c\xa5\x14\x8a\x08\x85L\x92\x88\x00\xde\x07\xe6\xb3\x86\x83\x83\x05G\x97\x0e\xb9r\xe5i\x9e{\xfes\xbc\xf4\xd9\xcf\xf3\xdc\x8b\x9fe6\xdf\xaf\x06\xa6\xc7\xbb+\x14\xaa\xd32\x9c\x1f\xf7{\\\xc6\x1f\xf6Ez\xd7\xe3G(\x14&gt;\xc1c\xca\x9bv\x86v1Y\xd6+\x95\xe2\xc8\xbd[op\xf3\xed\xef\xf3\xc6\xeb\xaf\xf0\xe6\x1b\xdf\xe3\xee\xdd;\x94,\x8ccd\xb3\x1d\x18FH\xc9 \x05\xbc\x03\xe7\x85R\x84\xa1O\x8c}$KF\xa4`\x8a\x90\x8b\xa5\xa7`\x10\x9c\xb3\x08\x85\\"\xc6\nM3CD\x18\x86\x91\xb3\xd3LI\x91\xbe\x1b\xb8\x7f\xef\x98\xb7\xdfx\x93\xe7^z\x85\x17?\xfby\x9ey\xf63\xec\xed\x1f\xa2q\xb1~\x91\xa9J=\x072\xde\xfb\x8b\x7f\xca\x8c\xebSnXO\xe8Lw)\x89L\xff\xc7\x009\x8f\xa4\x18\x89qD\xa4`\xad\xe5\xf8\xee-\xdex\xe5[\xdcz\xe7-n\xde|\x87{wN\xe8\xfaD\xce\x99\x18#)er\x11\x8c\xb18oq\xc6"Y\xe8\x87\x8e\xb1\x8b\xc4\x98\xc8%\x92K\xc2\x1a\x8b\xf3#1\x8e\x18\x01\xef\rB\xa4Hf\xde\xb6\xe0\x85"\x05\x9c!\x17GLjd1\x9eqz\x7f\xc3\xad\x9bos\xe7\xf6;|\xf6\xf3\xb7x\xe1\xf9\xcfs\xf9\xda3\xb4\xb3\xb9\xe6^\x0f\xbb\xe1\xf7\xb5\x9dO\x97q}\xcaC\xe1\x13\x1e\x9a\xc8\x85\nO(%\xb3\xdd\x9c\xb1:\xbd\xcb\xc9\xf1]NN\xee\x13\xe3\xc8b\xb1\xe4\xe6[os\xf7\xd6\r\xba\xcd\x86\xb3\xb3\x15g\'\xa7l\xbb\x9ea\xec\x11#d\xc9\x94,4&gt;\x10| \xe7\xcc0\x0el6\x1d\xfdX\xc89+\xcc\xe0\x0c\xc1{\x8c\xb1\xf4}\xc6\xe0\x10\x19\xc9e\xc4{\xcb\xacY`\xac\xc5Z\x87q\xe0\xbd\xa5i\x1a\x16\xb39\xcb\xe5&gt;\xde7 \x19\xdf\xc2\xc1\xc1&gt;/\xbe\xf8\x05~\xeaK?\xcf3/|\x86\x83\x83#\xac\xf3\x17\xb0/\xc3.\x05{\xef\xcb\xf9\xc3\xbe`\xe7G\xf2\xe95,y\x9f\xbf\xc3\xe4\xaa\xa6\xfc\xa4\x14!\xa5\x91\xe3\xbb7x\xf5\xe5\xaf\xf3\xe6k\xaf\xf0\xce;or\xeb\xd6M\xb6\xdb\x9e\x83\xa3+\xcc\xe6\xfbH\xec\xc8\xe3\xc00\x8c\xf4C$\x8e\x91\x98#\xceB\x91\x8cd\xc1\x18\x07\x08\xc382\x8c\x91q,$\xd1\x12\xae\x88\x00\x16\xdfxrJ\x8c}B\xa4\x90\xf3\x88\x11\xc1\xfb\x80\xf3\x9eT\x12\x8b\xf9\x1cc5G\xf2\xde\xd3\xf8\x06\x110\xd6\xe0&lt;,\x16\x81\xf9|\xceb~\xc0\xd5\xabO\xf1\xc5\x9f\xfa\t\xfe\xfc/\xfe\x15\xae\\}\x06k\x9d~Kcv\x15\xe4\x13\\\xd2\x1f\xf6\x85\x03&gt;\x95\xa1\xf0I\xed\xbc\x1a\xd5\xf4O\x11\xc6\xa1\xe3\xc6[\xaf\xf2\xa7_\xfd\xaf\xdcx\xf3\rn\xdf\xba\xc5\x9d;\xf78&gt;&gt;\xa5O\x89m4&lt;}\xbd%m6\xc4\xb1c\x8c\x91\x9c3\xce9f!\x10B\x00\x84~\xe8\x19\x86jPC$f\x01\xe3\xb1VHE\xbd\x16\x92)}A\x8azH)\x11k\n\xde:\x8c\x18\xa4\x14\xe6m\xcb\xac\t8o\xa96I\x8c\x03CL\x84\x10\x98\x19OI\x8e\x92\x85M\xb7\xe5\xf4\xfb\xafr|z\x97&amp;\x04\xbe\xfc\x8b\x7f\x95\x83\xc3\xcb\x15\xffb\xe7\xbd\x1e\x84&amp;\xde\xeb\xfc\xfdp\r\xecShX\xef\xf7x\xb0m"R0\x18\xfa~\xcb[\xaf\x7f\x9b\xaf\xfe\xd1\xef\xf2\xf6\x9borr\xac\x06\xb5\xd9\xf4\xa4\x04R`\xecV\xdcy{\xc0\xe4\x8c\xb5`\xad\xc1;K\xe3\x1c\xcez\x10\x88Y\xc8\x19\xc6(\xc4(\x08\x0e$\x93S"\x9bL\x01\x9cw\xbb\xdc\x0bc\xb0\xc6\x01\x05c,\xc1\x07\x1a\xdf\xaaW\x92B\xe9{\x92\xb5\x84\xa6\xa5\x995H\xf0\xd8\xe0()SJ\xa6\x1b"\xd8\x91v\xe6\xb0\xd6\xb2Zu\xfc\xe9\xd7\xfe\x1bB\xe2\xcf\xfd\xcc_\xe4\xdaS/`m\xa0\xd4\xef\xb9\xfb\xee\xf0\xc0\xdf\x1fw\x8e~X\x8f\x1f!\xc3z\xf0dM\x11\xdc\x18\xcbv{\xc6\x9b\xaf\x7f\x97\x97\xff\xeck\xdcz\xe7&amp;\xf7n\xdf\xe5\xde\xfd\xdb\x9c\x9en\x89\xa3\xc1\xb9\xc0\xb2\xf5\xf8\x023\xebX\xce\xe64\x8dC\x8cP\x00c=\x14\xc3\x10#\x00%\t\x92\rF&lt;\xc6T\x08\xc0&amp;\xa4\x180\x82\x88\x90$Sr\xc2\x18\x8b\xa1\x10\x82\xa3i\x1c\xb3vFc\x03q\x1c)\xd9 xR\x11r\x1a\xd9nFd\xf75,}\x16\xa4O\xd5\xf0-m\xdbb%s\xe3\xc6-\xfa\xe1\x8fX\x9du\xfc\xb9\x9f\xf92\xcf\xbf\xf4c\xcc\xe7\x07\x9a\xdb=Q\xb2\xf5\xc3O\xe4?E\x86\xf5\xa4!Pv\xe1@\xa4p\xfb\xe6[\xbc\xfa\xca\xb7x\xfd{\xafr\xfb\xe6-\x8e\xef\x9dq\xef\xfe\t\xc7\'\x1b\xfa\xedH\xebg\x1c\xceZ\xf6\x17-\x8d\x13\x0e\xf7\x97\xec/\xe7\x88\x14\x86\x14\x19R&amp;\x031\t)\'bR\xcf3\x9b\xcf\xb1\xd6RJ\xa1\x1b"}\x1cq%\x83\x05(\xc41RD0\x02\x8do\x98\xb5\x01\xe7\xd9Ut\xc1;Lc\x11\xec\xae\xa0H\xf5O\x1c\x131A\xcc\x10K!g\xc1\xe2\xc81c\x9d\xc58\xd8\xac\xb6t\x9b\x8e\x93\xb3{\xfc\xccf\xc5\x9f\xfb\xe9\xbfP\xe1\x0bv\xc6\xb5\x0b\x8b\x8f\r\x89?&lt;\xe3\xfa\x94\x18\xd6\x93\x19\xd5\x84R\x03\xa4\x94\xb8\x7f\xff\x16\xdf~\xf9Ox\xe5\xdb\xdf\xe6\xfe\x9d\xfbl7[\xee\xde\xbb\xc7\xf1\xd9\x86a(8\x138X\xcc\xb8~\xb8\xe4\xf2|F\xe3a\x7f\x7f\xc6boN?&amp;\xd6[\xb5\x93\xb1dR}_g,n\xdejUf\r)&amp;\xc6$\x04\x11\x8cm1VH1\x92m\xc1Z\xc1`i\x9b9\xc1\x07\x8a\x8c\xa4Tp\r,\x1630\x86\x143\xce\x19\x0c\x9eR2c\xca\x8c8\xba\x9c\x10\x03Y\n9\x17\x86a \xc5\x881\xe0\x82\x86\xe6q\x1cYo\xb6\xc4Q\xd8\xdf?\xe2\xb3\x9f\xfb\t\x9c\x0b\x8f8/\x9f&gt;\xe3\xfa\x14\x18\xd6\x07+JE\xa0\x94\xcc\xfd\xfbw\xf8\xd6\xcb_\xe7\xe6\xcd\x1b\x18\x0c\xde[\xfa\xed\x19\xfdvM\x1e3\xc1y\xf6\xe6\rW\x0f\xf7\xb8~\xb0\xe0h\xde\xd0\x18\xa1\x9d\xb74m\x83\xb3\x16\x03\xb8\xc1a\x86H\n\x99\xbd\xa5\x05\x13\x10\xe3\xe8cf\x18GR\xce\xe4\xacpB\x13\x02\xb9\xe8s%\x0b\xc1\x05\x8cU\x18\xc1X\x83)\x0e\xc1blC\xd3\xcc\x15\xc2\x10\xa1\x088#X\x84\x99\xf7,\x0f\x16\xec\xb5\x89a\xcc\xac\xc7\x91D!\xa5H\x9f3\xde9\\\x0ex\xafX\xdaf5\xf0\xfdW\xbe\xcf\xd1\xe1\xefstt\x99\xcbW\x9e\xc19\xc7\xc3F\xf3x\xe3\xfa\xe1&lt;&gt;\x05\x86\xf5^\x8fw\xf3\xa4D2g\xa7\xf7y\xe5\xbb\xea\xa5\x1a\xebY\xc5\xc8\xe9\xbd{lWk\x16M\x83\xdb74\x08\x87\xcb\x05O_&gt;\xe0\xfa\xe1\x82\xbd\xc6\x13\\ \xccgj\x04\x8c\x888\x8cm\xb1\xbe\xe0\x05\x96\x08CLt}\xc2\xc4\x02\xc6\xe0\x83g\xff`\xa9-\x9e&lt;\x12SD\x8a&amp;\xd2\x06\x98\xb5\x01c3\xde[\x8a8\xc6\xb1\xd0\xf7\x05S\x06b\x1cq\xc1\xd2\x18\x8bXC\x08\x96y\xd3\xd2\x06\xcf\xb8\x1d\xd9\x98\x0ek\x1cgCf\xd5\xf5\xf4\xe3Hh\x1a\x9a D\x9f\xb1\xce\xd3\xcc,}\xd7\xf3\xedo}\x9b\xcb\xd7\x9e\xe2\x17\xff\xd2_g\xb9w\xa8\x10\x84y\x12\x8f\xf4\xc3\xa9\x12?\x05\x86\xf5(\x86\xe5\xc5\x9f\x9d\x1bU)\x99\xd3\xd3c^\x7f\xed{\xacOOH}\xc7\xdb\xaf\x7f\x8f\x9bo\xdf`s\xb6\x01\x04o-\x07\xb3\x86\xfd\xd0p\xed\xe8\x90kW\xf6\xb9\xb4\xd7\xb2h\x1b\xda\xf9&gt;a\xb1O\xce\t{r\x0fa\x8bm,\x8d\xf1\x84\xb1\xd0\xe7\x88o\x04l\x8f8\x83\x1b\r\xc30(&gt;\x96\x15D\x1d\xe3H\xce\x95\x87\x05\xa480\xa6\xcc\xba3\x94l\xa0X\xbc\x0b\xa4\x94\xb0\xce0w\x16\xe7=\x8du\x04kp\xc6\xd0\x04O\xbb\xe7X\xcc&lt;\xdb~\xc0\x9e\xad\xc9c\xa4\xe4@\x1c3\x9009\xedN\x81H\x01+|\xeb\xcf\xbe\xceg&gt;\xf3\x05^\xfc\xcc\x02\x1f\x9az\xdf}:\xe0\x85\x87\x1f\x9f\x02\xc3z\x9fP(\xe7w\xe5ju\xca\x1b\xaf\xbf\xca\x9b\xaf\xbfF\x1c\x07\xee\xde\xbc\xc7\xe9I\x871\x81\xf9bN\x1c:$\x8e\xec\xb5s\x9e&gt;&lt;\xe4\xe9\xa7\xaeq\xf9\xd2\x1e\x8b\x99\'\x04O\xbb8\xc0\xcf\xf7\xc99"Dl0\x0c\t\xc6b)\xb9\xa3\x14\x10\x03\xadu\x94\xd0P\x8aa\x1c\x0b\xd6\xc1l\x11h\xe6\x96n\x08\x0ccFr!\x8fI\x0b\x80\xa2 \xa93\x9e\xfd\xf9\x1em\xdb"\x14fsO\xc9#\x19\x08\xcb\x96e\xdb\x12\xac\xb0\x08\x9e0s \r3\xe7\xf0@\xeb\x1c\xf7V=\xc7\xeb\x0e0\xb4\xed\x1c0\x0c]"\xf8\xc4\xa1\xf5t]\xcf\xf7^\xfd6W\xae]\xe3\xf0\xe8\x1aT\x8c\xeb\xe2\xa9zt8\xfc\xe4\x8d\xeeS`X\xef\xfd\xa8\xbe\x8a\xd5\xea\x94\xdb7\xdf\xe6\xfe\xbd{\xf4\xdd\x96\xb3\xe3cN\x8e\xef\xd3\x84\x00\xb3\x86\xb1\x0c\x04\xefh\xfd\x82g\xaf^\xe1\xb9\xab\xd7x\xea\xa9k\xec\xed/\t\xc1\xe1\x82\xc763\\\x98\x91\xe3\x80)\x11\xe7,\xbe\x1f\xb0}ft\x161\r6\x16$@L\x99`\r{\x8b\x19\xc3h\x1030\x0c\n\x88\x89dbN\xe4Z\xd1\xc5\xa4H}\xf0\x15`\xed;(Bp\r\xde\x89\xe6\x80\xd6\xd14\x9e\xc6\x8a\xc2\x1e\x8d\xc3\xbb\x96\xd6xf\xc11o\x03M\xf08[8\xd9\x8cPF\xda\x99z\xa6\xe0\x03\xc6X\x86a\xe0\xd5W_\xe6\xea\xf5\xeb|\xe1\x8b3\xf6\xf6\x0f+\x04\xf10%\x9a\x87\x08\x11\x9f\xbcW\xfb!\x19\xd6\xfb\x11\xf3\x1e\x0c\x81}\xb7\xe1\xce\xcd\x1b\x9c\x9c\x9cT\x8aIa\xbd:c\x1c;\xbc3\xd82\xb2\xf0\x86\xfd\xc5\x1e\x87\xed\x82\x17\x9e{\x86kW\xafrppH\xdb4X\xef\xb1\xc1\x83\xf3\x18\xeb\xc8\xce*\x1d\xc5Z\xb0kr\xde\xd0xK\x8c\x82\xb7\x86\xc6e\xbc\x11LI\x98R(i\xa0\xa4L\x1c39fJJ\xe4\x18\x89\xb1P\x8a \xa9`\x8dShb\xec1\x05\xbcu\x0c\xbd!,\x1a\x9c\xf5;2\xa1\xb1\x8e`\x1d\xa1\x9e\xfc\x10\x1c\x8d\x9b\xd14\x8e\x10\x02\xde9\xe0\x84\xd3\xbe\'EK\xd3\x06B\xb0d\xc9\x8cq`\xbd\xdep\xe7\xf6M\x9e}\xf63,\x96{\xbb\xb6\xcf\x93\x19\xcf\'W%~J=\xd6\xb9\xe1\xe5\x1c99&gt;f\xbb\x1d\xb06`\x9d\xa3\xeb{\xb2\x14\xda\xd6\x91\xfa-^2\x87\xcb9\xd7\x0f\x0e\xb9z\xf9\n\xcf&gt;\xfb,{\x07\xfb4&gt;`\x9dU\xc6\xa6uPKuc\x94\x9eR\x8c!\x8ba\x1c3\xbe\x1b\xb01b\x11\xbc-\x04\x0b\x0eaL\x11\xc9\x1a\xfa(`\xd1&lt;\xc9\x19G6\x06L\xc1YA\x8a0\xc6\x88\x88r\xb5\xc4\x19\x8611k\x1b\xc0\x92Ka\x1c"\x0b\xeb\x08M\xc0#\xb8R\x00\xc1z\x87\x0b\x01\xe7g`&lt;1\x0b\xc3\xbdD7\xf4\x84\xa6\xa1\xc8\x82,\x99\x98FJ.t\x9b\x9en\xbb!\xa7\x88m&lt;\x1f\xac\r\xf6\xc9&lt;&gt;\xa5\x86\xa5\x0f\x11\xa1\xef7l\xfb\x8e\xc5\xfe&gt;\xb6w\xdc\xbe\xfd\x0e\x9b\xf5\x9a\xb6\r\xb4n\x8fh`N\xe1\xf2b\xce\xb5\xcbWx\xfa\xb9\x17\xb9t\xe5\n&gt;8\x8c\x01k\x0c\xe4\x02\x13\x04f,X\x83\x0b-^\x0c\xa1\x15\xc2,\xd1\xccFf\xc5`\xed\x08b\x985\x9e\x94[0\x16\x17,\x82 Y\r\x88\x02&amp;x\x9c\x83R\n1\x8d\x0c\xe3\x08YCQ*\x85"\x8aI\xcdcR\xfeV\xf1X\xb1\xb8b\xf0R\xf12\xa3\xfc-\xc1(n\xe6\x0cI`\xcc\x85&gt;en\x9f\xac\x18\xc7D\x1cF\xday`\x1cF\xd6\'+N\xee\x9dpzz\xca\xd5\xeb=\xa1\x99=\xf2\xdc=Q\xc1\xf81&gt;~\x08\x86\xf5d\xfc\xf4R \xa5\xc8z\xbd"\x84\x86a\x8c\xdc?\xbe\xc7z\xb3\xe2\xe8\xe8\x80n}\x9fT\x0cG\x97\x9fb\xcf9.\xef\xcdy\xea\xfaU.]\xb9L;\x9f\xd5b\xb3`\xaa1H*\x80\xc3\x04\x87\xa9|w\xeb\x1c\xa1i\x99\xcf\x97\xa44\xe2\x9c\xa3\x1f\x15\x93\x12c0\xd6\xe1\x9cc\xd3\x17\xca|N)\x10cb\x10\xa1\xe4j`\x16\xbc\xf3$\x97\x10\xc9\x80\xa1\x14\xf4\xcaZ\xc1z\xa5@\x1b#4!0og\x18\xb1P\x0c8S\x07-\xb4\x91\xee\xbc\xc5\x1d\xcc\xf1\xde\x933l\xfa\xc8f\x8c\xa48\x12\x87\x86\x92\r\xabq\xcb\xf7^y\x95\x83\x83\x03.]\xba\xccby\xa0m\xa5\'2\xa2\xff\xbf\x0e\x85\xef\x05/&lt;x\x12b\x1c\x891q\xf3\xe6;\x9c\xdc?\x01cx\xea\xfas\xf4\x9bSn\xf4=\xfbW.qi6\xe7\xb0m\xb9\xb4\xbf\xc7\xd1\xe1\x01m\xab#X\xc6(\xc3@\xd2\x88\x140\xd6"\xa6\xba-)XPz\xb1q\xcc\x9b\x16\x7fx\x89\x8dw\x98\xcd\x96\xedfK\x8e\x85\x9c\x12\x92#P\xb0\xce\xe2}%\xff9pE\xb0\xd6\x12\xf3\xc4v(\xb8\xda\xd46F\xb9Z\xcb\xc5\x92\xf9\xa2%\xb4\x1e\xbc\xc18\xa3ED\xa5\xd1\x18gp\xb6&amp;\xdf\xceb\x9c6\xb7\xc3\xfe\x1c\x8bg\xd5\xafx\xeb\xce}\xd20`X\xe2,P\xa0\xeb\xb7\xbc\xf9\xe6\xf7y\xea\xd9g\xb8|\xf5)\xf6\xf6\x8f\xb4\x19o\x1ejR?\xd2\x8e&gt;\x19\xe3\xfa\x14y\xac\x0b\xbf!B)\x89\xbe\xdf\xb2:;\xe5\xd6;\xef\xe0\\\xe0\xea\xb5k\xcc\xe7-gd\x0e\x96\x07\xa4\xcd\x06\xdf\x16\x0e\x8e\xf69&lt;:\xa2m\x1a\xbd\xb0\xd6\xa1C\t\x82\xb4\x06\xd3hn\xa5)M\x86\x92\xd5\xa1`\xf0\xd6`\x9c\xc5\x88\xa74se*\x14C\xd3\xce\xd9\x0c#\'g\xa7\xac\xeevt\xdb\x8e\x92\xb5\xd9l\xa3!\xf5\xda\xbe\xc9\x02)\tF\x1c\xde\x1a\x9c3\x84\xe0Y,\x96,\xe7K\x1a\xef\xb0F\x90$\xe4\x98\x91R\xc0:\x8c\x15\xfdc\xac\x86\xebJK\xb6\xd6\x10\xda\xc0\xa5p\xc0S\xdbK\x9c\xad7\x9c\xf6\tH\x84v\xc6\xd9i\xcf\x90=w\xee\x1ds\xf3\xc6\r^&lt;\xbe\xc7r\xef\xe01\xe7\xf7qC\xb6\x1f\xff\xe3S\x95c\xedJ\xe5:\xd7W\xb2\x10Sfo\x7f\x9f\xa6\x99\xd1\xb4\x8d\x1e\xb4\x0fH\xca\x8c\x9b\r\xcd\xa5\x03\x96\x8b9\xb3\xc5\x0c\xef\x1cV\xea\t\x9c(\xca\xae&amp;\xb7"X[C\x98\xb3\x98"\xd8R\x94\xad`-\xd69\xda\xb6\xc5Y\x03{\x99v\xd6\xb0\x9fa6o\x89)\x92\xb2a\xdd\x8dP\n\xde44!\x93\xd3@)\x19\x8b\xce\x0c:ch\x9c\xa7\t\x01g\xa0\x8c\x03)Z\xc4Zf\xf3\x86&amp;8\x0c\x05\x8b\xc5\xd9:\x8dc\x04\x1d\xeeQ\x10\xca\xd4?\xcd|\xc6\x95\xa3\xab\x9c\\\xeaH\xc7\xf7Hq \xcb\x82b \x96D\xd7\x8d\xdc\xbf{\xcc\xfd\xbbwx\xfa\xd9\xe75G{\x98\x01\xc2\xc3\xf8\xe9\xfbM\xfd|t\x8fO\xd8\xb0\xde\xcb[\x9d\x87H\x11!\xa7H\xdfw\x0cc\xe4\xe0\xd2\x15\xe6\xed\x0c\x10r\x1c\xb1\xc6b\n\xcc\xe7\x0b\xf6\x0e\x8f\x98\xed\xed\x13\x9a\x19V\x89\xee\xd5\x8eJE\x0c\xadR\x97\x8bf\xd6F\x13\xa0z\xc6\x0b\x1a\xe6\x0c\xdex,\x05+\x8e\xec\r\xc6X\x9a\xd6\xe3\xdc!i\x1c4\xa1\xef\x13\xa7\xab\r"j\xf01h\xe2-\x15\x99\x0c\xd6\xe1\x8d\xc3\x14\x83\xc4\xc2XzL\xf0\xcc\x17\x0b\xf6f-\x8b&amp;\xe0\rx#X\xa3\xaf\xd3\xe0\xac\x83\x19\xc6\xbajl\x06g\x03{\x8b}\xae\x1c\x1d\xb1\xee7\x9c\xc6\x11g=\xcb\xfd\x96n\x18\x01\xc3j\xbd\xe1\xde\xdd;\x0cC\xcfb\xb1\xff.L\xeb\x87\xf9\xf8\x04\r\xebqs\x81\xe6\x11\xcf\nc\x1c9==&amp;\xc7\xc4\xfe\xde!\xf3vF\x8c\x03%FD2\xde\x1bf\x8b\x03\x96\x97.\xd1.\xf6qM\xc0HALBJ\r9F\r\xc8HQ\xc3*\x9a\x0b)\xe5\xa4hro\xce\'x\xb0\x06\xb1\x16\xef\x1c9EH\x85\xb9\x85\xa3e\xc3\xb8\xd70k\x1b\x1a\xaf\xc4\xbf\x94# \x8c\xc6\x90\xc8jX.\xe0\x8d\xc5\xa3F\xe6\xbce1k8\\\xb6\x1c\xcc\x02\x0b\xefh\xac\xd5\\\tArA\xac\xd2\x94E\x04r\xc2\xfa\x80C+\xc6\xe0\x03\xcb\xf9\x9cE;\xe3\xa4\x1b0\x19\x8e\x0e\xf6i\xc3\xc0b\xb6\xc4{\xcf\xd9\xd9\x8a{w\xef0{~\xb9\x1b\x84\xd5\x87y\xf0\xac_\xa0\xdb|\x12\x8f\x1fb(|\xbc\xf7*E\x18\x87\x91\xed\xa6c\xd6\xce\x98\xb5-E\n9e\x8a\x88^T\x1b\x99\xcd[\xe6\x8b\x19a6\xc3:\xa7\x86c-\xc4\x11\xeb\xa4\x0e\x90\x8a\x1aW1\x08\x16+V9\xeb\x92v\xdd"e\xe3\x94\x9d\xd19\xeb\xf1\xc6P\xe2\x80\xc9\x85\x96\xcc\xdc$\xc6\x1cY4\x96\xa3\x83%H\xe1l\xbd\xe2,\'\x92\x01\xb04\xbe\xa1q\x96`ao&gt;g1\x0b\xb4\xde\xd2z\xc3\xdcff\xb6h\xce\x85ze3\x8d\xdc\xef\xe6\x08\x0bd\xa5\xe2X\xabEB\x08\x8e\xb6iq\xc5\xb2\xbd\xbf\xe2`y\xc4\xb2\x99qxp\xc0\xde\xfe\x92\xa1\x1fx\xe3\xf5\xd7\xb8\xfe\xd43\xb4\xed\xe2\xbd\xcf\xb8\xf0\x84\x8d\xeb\x1f\xfc\xf1C4\xac\xc7\x7f9\x11A\n\xcc\xda9&gt;hC7\xa7D\xca5\x9cI\xa1mg,\xe6s\x9a\xd0\xa8Q9\x07\xd6`\x92\x01\'\x18\x1c%g\xd4\x13\x81\r\xa8\x17\x13\x83-\x15\x82(\x1a2u\xc6\xa7\xa8\x17\xa3\x80d\xe5EUlia\x03\x07\xcb\x91\x98\xce\xc8C"ZCn&lt;\xc5[\xa23\x8cbp\xd6\xd16\x1e\x0b8\xc9,\xbce\xcf[Zgh\xbda\xe1\r\xad\x17\x9cU\n\x8e1\x16\xb1\xd4\xcf\xce\x152\xf0`\x05E#2E2\xc6\x18\xda\xa6a\xd6\xb4l\xbb\x9e\xe3\xd33\x8c\xf7d\x81\x9c\n9\t\xfb\xa7gt\xddf\xd7_\xacg\x91s\xda\xe1\'\xff\xf8\x98\r\xeb]j\x1b\xef\xf9\xdb\x17\xc6K\xb1\xce\xe3C\xd0|)\x15\xbc\x0b8\xe7\xd8\x8e[\xc6m\xc7\xc1\xde\x11\xcb\xc5\x1e\xce\xf9\xfaI\xca=\x17+X\x17\x10\x93\xb1u,L\xb051\xce\x88\x18\x8c\x15\x1c3\x8c\xb5\x15RHuLk\xf2bf\x17:\xacu4\xbeeoy\xa0\xac\x06\xb3\xc1\x96\x8c\xcb\x06;:\xf2\xd02\xda\x841\x0e\x9b"\xceXf\xb3F\rI\nsk\x99\x05\xcf\xcc{|U\xa6\x11#\xb8\x1az\x8b1:\x94\xbaK\xe0\xc1x\x0f\xc6\xd5\xea\xd1\xd24\x81\xe5r\xce\xfad\xc5\xb6\xdfb\xda\x86\xed\xc9\xc0\x18\x93\xdex\xe3H\xbf\xddP\x0e.\x9f\xebB&lt;"\xd7\xda\xe5\xef\x9f\x80\xd7\xfaTU\x85:P.Xkhg3\xe6\xcb%g\xc7\xc7\x18k\x08\xd6S2\xe41\x11\xfb\x91\xa6\tx\xd7\xe8k\x8a\x82\x91\x82\xc5\xb8\x00\x16L\x8eJU`J\xe2\r\xe2\x1c\xc68\x8c@q\x83Vh%C\x81b=\xc5\n\xd6%\xac\xcd`G\xcd\xe7b\x87\xf1\rm\x13X4\x81\xd4\x1b\xc4\x81o\x1c\xb3\xfd=fxV\xdb-B\xc1\x1bC\xeb\x03\xed\xac\xa1m&lt;\xad\xb5\xcc\xda\x96\xd0\x18\xac5\x18\xb9p1\x8d\xadM\x00\xb3\x9bv\xb6\xc6`\xad\xc7Y\x87q^[X\xd6\x13|\xc3r\xb9`/&amp;\xb6c\x0fdf\xf3\x05b\n\xfd\xd8\xb1Z\x9fr\xf7\xcem._y\x9a\xa6m\x1f8\xa3\xef!%\xc7\xc7i\\\x1f\xa3a}0o\xf5\xb0\xceB)\xa5\x9eh\xbb{\xceZ\xbb\x03?\xd5\x03Y\x05AK\x86\xe2\xc0\x19m4\xef\xa86F\xf3.\n\x06\x7fNm\x96\xa2\xe1\xa8x5.\xa3\x04\xc2\x1a\x1b1\xdec\xad\xc7\x00%%e\x9aZK\xdb8\x1a\x0b\r\x05c\x1d\xed\xcc3w\x9e\xfd\x99gL#\xdeYfM\xa0\t\xda\xd3tu\xf6\xd0\x1a\xd9a)\x02\x9a\x07bw\xdaZ:\x16\xa9\xb3\x8a;\xb5\x06\x01\xc9:\xc9S(\x18gh\xda\xc0z=\x10\xfbBh[\xb2d\xfa\xa1c\xbd:\xe3\xd6\xcd\x1b\xbc\xf8\xd9/\xd0\xb4\xedc+\xc3\x1d\xf2\xf0\t\xa4Y\x1f\x93a=\xc9\xb0\xe9#\x1eU\x9b\xaa\x94BN\x11g\xf5\xc2\x88\x08\xb9\x14\x9c\xb3\x84\xc6\xd3.f:\\j\xb4\xd3Vj\xd9n\x8c\xd1\xe1\xd0\x02X\x8b\xc1\xd7R\xa8~~\xcePT8\r)\x18\xe7\xb0\x04\x8a\x01\x13\xa5\xcaA\xd6J\xd1\xd6\xa2\x12\xab\x1e\xd1%\r\xa1\xde\xe0\xad\xfe\xd0z\xcf\xaci\x98\xcf\x02C\x1c\xb0\x16\x1a\xefp\xd5p\xc0b\x9c\xd1\xf6\x8d*|h!a/\xaa\xcc\x18\x1d\x13\x9b\n\x89\xea\x815\x1f,H\xd6\n4\x89\x86xg\x83N\x17\xa5L\xb7\xed4M\xf0\x81\x83\xbb\x87t\xdd\x86\xfd\xfd\xc3\x9d\xfe\xd6\x83\xf6uQ\x0f\xe2\xe3O\xdf?}\xa1P\xa4\xb6\'\x04\xeb\xeadr\x11\xb2\xb5X1\xb8\x10\x98-\xf6 v:\x8cPP\xc3\xaa\xf8O}\x9b\xfaGs\x14(\x88\xa4\x9dG"\'\x85\xe1\xa5bG\xaePK;(\xb2K\xe8k\x92E\x11\xb4\x01-\x82sJo\xb1\x08\xbei0\xd6\xe1\xe3H\x08\x16\x8czY\xed\x1ci\x88+\xb0\xc3\xd2\xd4\xb8\xaa\xf1\x8a\xa0\xd9\xbb9\xf7V\xd6\xed\x98\x17p\x9e\'\x95\\G\xd2\xc4aM\xc0\x9aL\x8a\x99\x14{\xc6!b\x9c\xe1\xf2\xd9\x19\xddvK\xc9\xf9\x82\xc8\xdb{\x15H\x1fo\x85\xf81\x19\xd6\x87\xadE\xce\x15\xef\xac\xb5\xc482\x0e\x83^&lt;/\x18k\xf0\xbe\xa1\x99\xef\xd1\x8f\x03\x82\xa3\x00\xb5\x1f\xac\x00)\xb5/X\x8f\xc3TQZ)\xbb\x1f*\x1a_!\x06\x8dP5\xf7\xaa\xf4\x1a\x99\xd0{\xe3\x80\\=\x8c\x832`qx\xe7q\x16\xc2l\x86\xc1b$c\x8b{\x003\x12\xb15w\xaa\xcfNX\x95\x08%\x97\x1a\x06e7\x88j\x9c\xd1\xdf\xa9]\x82\x9a\xc7c\xb1\x98b()\x91R!\xe6D?\x0e\x84V\'\x89\xa2\x14\xc6\xa4@\xed\xa4+\xf1\xf8k\xf2\xb8s\xfe\xd1\x1b\xd7\xa7\xcecM\xdf5\xa7B\x1c3\xde+S\xc1X[G\xd9\x8bV\x8b\xc6\x91\xb2\xea5\x88\x94s\xfd\xab\xda\'\xb4N\x07R)\x05\x8abC\xea\x15\x002bl\r\x97\x06[C-\x92\x91\x1c\x91\x18!\x17,Z\xb5Y\xe7\x14\xa2\xa8\x89\xb5wN\x9b\xce\x12\xc1:B0\x98l)9Q\xa4h\x15Z\xbf\x8d\x15E\xd61\xa2\xbdK5E\xc4\x18\n\x06k]\xfd\xbbEL-6J\xbe\x00\x83h~\x19\xc7\x91\xae\xef\x89\xa9\xe0\x9c\xa3q-&gt;x\xb2$J.\\\xb9|\x99\xc3\xc3K8\xef/\x00\xa1\xefc4\x1fcL\xfc\x84r\xac\'y\x9c\xe3/"J\r\xee\x87Q\'e\xac\x85\\\x889\x03\x10\xda9\xf3\xfd#\xbc\x11b\xd71\x1aCp\r\x12\xea\xfb\xecX\x95\xd5\xe0\x8c\xada\xd1Q$!\xb9h\xc5\x87\xc1L\xf8\x97\xa9!I\xf4\xc2\x96\x9cj\xd2\xac\x93\xceB\xc45\x06\x9f&lt;%\xab\xde\x821\xda*2\xb9`\nX\xd1\xe4{r\x8eVD\rF&amp;C\xa9\xe1m\x17\xaa\xcf\xd5\x98\x8dT-,\xa3:\x0f\xd6\xd8\x1a\xa6m\xf5v(\xc0K\xc1\x87\x86v\xd6\xd2\xb6\x81,\xa9\x8a\x8d\x04\xbcw\x1fh\x04\xec\xe3\xcc\xb5&gt;U\x1ek\xeau\t\xca{\xea\x86\x91\xe5b\x813\x96\xbe\xdb\x12\xe3H3\x0b\xb4aF3\x9f\x11W\xa7\x903\x8d\xf7\xe4\x92w\xbd\xb7\x9d\x90\x86EO\x9d\xd1\xf6\x8e\x18\x81\x98\xeb\x05\xd4\x8aQJm\xfe\xfa\x80\r\r\xae\xce-\x9a4 1c\xadWj\xf2\xd8#\xd6\xe1\xbc\xc7\x05_\xdbF\x06\x8c\xdf\xd1]\x8a\xd5v\x0f\xa2\xca~\xaa\xdf0}\'\xcb\xa4\x0f/R=\x14\xc2.k\xaf\xc6-\xc6T\xb8V\x87\\\x9d\xf5x\xefT\x02\t\x8fq\x911\x0bC\x1c0NX.f\\\xbfz\x8d\xe5|\xa1=\xd1\xdd\x18\xfe\x871\xa3\x8f\x8e\x1b\xff)1\xac\x07\xbf\xb4\x96\xf7\x8e\x83\xbd\x03B\xe3\xc8Q\x15\x8c\x87~K\xca\x0eJ\x82\x94\x89\xc3H\xce\x89v\xdeRJM\xb8wX\x91\xde\xfd\xc6\x08b+\x02m\\\xc5\x8f\x9c\xe6\xd3)#9\x01\x06I\x19#\xb6\x92L\x95y`JV\x07\x16\x07r\x1cj\xd8U\xcf\xa6\xe9q\x06\xe3\xb0m\x83\xc9\xa2\xc9^\x16\xa4\x18\x8c\\@\xfd\x8d\xad!M\xc9\x86R\xa5!\xf5\x88+\xbcP\xd1KA\x8f7\x97\xa4\xe0h;c1_\xb0\x18\x06F\x19Hx\xfdY5X\xef&lt;\x88pvvJ\xdfm98\xbc\x0c\xf6\x03\x0c\xb0~L\x80\xe9\xa7&amp;y\x97ZzOj\xc6&gt;x\xe6\xf3\x96\\\x12\x18Q\xee\xbas\xa4q\xe4x\xb3\xc6\x94\xccpv\xc6\xde|\xc6"-(9\xe9\x85\r\x9cW`\xd4+6\t\xb3Y\xa9\t:;H\x81TK\xfb\x82\xa2\xe7\xd6Q|\xc0\x85@v=9\x8d\xda,\xcePb\xac\x9eH\xcdA\x91r\xad`q\x86"`\xc4b\'q\xa5\x92\xf5(4\xceap\xbb\xb0\xbc\xdbnqA\xb0O\xbd\x8dU\x03\xcf\x05\xeb&lt;\xb3\xf9\x82\xfd\x9c\xd8\x0e=\xeb\xbe\xc7P\xf0\xc1\x03\x06\x93!\xc5\xccj\xbb\xe1\xf8\xf4\x841\x8ej\x98\xbbS\x7f\xd1X\x1e\x8fm=\xd4\xae\xfeH\x1e\x1f\xa3\xc7\xfa \xc6U/\xbe\x91\x1d\xdd\xc5XHi$\xe7\x02@h\x1a\xe5\xc0o3\xeb\xcd\x96&lt;vt\'\xc7\xcc\xfc\xf5J\x8b\xa9\xbd\xb1)W\xaa\xef+\x15\x10\xd5\x06s\x9d\xcc1\xb6\x02\xa9`L\xa1\xe4\x825Y#\x12\x05\'\x82kZ\\\xdb\xab\xa6h\xf6\x902\x98\x04%"E\xeb=k]5\\\xf5N:\xc4*8e\x11\xee\xe8\xcbz(\x13\xb65\x89\xc5\xa9\xa7\x92\t\x1a\xd8\xf1\xb1\xbc\x1a\xa0v|\xb0\xb3\x061\xfbt}\xc7\xf1\xd9\x19\x92\x07\\h\x11\xb1\xe4\xa4\x03\x1a\xbe\xf5d\xa3\x05\xc8\x87\xd1\xd1;\x17\x17\xf9\xe8\xbc\xd6\xc7\x1c\n/6D\x9f\xe07\xe5\\\xf3\xaa\xa4D\x8c\xb5\x877iP\xd5\x9f[gI\xa5\xb0\x9c/Y\xcc\xe6*\x1d\xd4\xccp\xde3e\xc62\x01\x9dR\x03\x8chu\x88\xb5\xe0\xdb\x9a;\'\xc4\x15L\xca@\xac(}M\xa6\xad\xc363\x1d\x80`\xa0\xe4LN\x0eS\nf\x9a\x9a\xc0b\xad\xd7\x9c\xad\xe8w\xb4F(&amp;\x81\x18\x8cqh&gt;\xaf\xa0m\x11m\x0bg\xa9\xcc\xd3";&gt;\xbcu\x0e\xeb\x1d\xd6\xa8p\xdb\x94sY\xefhL\xcbb&gt;g\xde4HY\x91S\xc2\x86\x16k\r\xd6\x19\xda\x99Rz\xe2\xa0\xc7i\xc2\xfb\x9e\xeeG&gt;&gt;J&gt;\xd7\'\xd0\xd2\x99*\x9f\xf71.3]P\xbd\xab\x87qT.9\x16\xef]\x15\x9f\x1du"f\xe8\x89]\xcf\xb3\xd7\xaes\xed\xa9\xe78\xbaz\x85\xd9ry\xceu\xaf\xd5\xd6\xe4\xad$\'\xad\xf4\xca\xce}`lC\xb1\x06\x91\x84\xf1\xea\xc5\x0c\x82\xcd\x85\\zE\xcb\x8b\xf2\xe6\x8dQ\xfa\xb2HV\xc6D\xd1\xa9\x9fB\x01[0&gt;\xa8\x8eVR\x8cJ\x8a\xa9s\x84\xb2\x931\x12T\x1cD\x80L!\x8aeL\x89\x18Gr\x8cXk\x99\xef\xed\xd3\x16G3\xb3X\xa3\x05\x02\xd9\xe10\xcc\xda\x96y\xdb\xeap\xc7\xd0\xe3Jf\xbe\x98\xe1\x9a\xa0a&lt;[\x9d{\xcc\x89\x1f\xac\xde\xfbh\xf2\xad\x8f9\x14^&lt;\xd8\'\xf9B\xfa\x18\xc7\x91\xb3\x93SJ)\xf8eS\x01IK?l\xb8{\xf7\x06\x9b\xe3\xfb,*\xddwyp\xc0l\xbe\x87s\x8e\xf3\xb4\xfd\xbc=\xa3\xd5[\xd6D\xbd\xe4\x1d6d\xb2\x12\xedJV\xba\x8c\x12\x03\x1db\x03b\x83r\xc2\xba-\xa9\xdfb\x9b\xba#\xc78\xb2\x8c\xd5\x9b\xa0\x90D.8\xa7\xb9a\xc9\xb1\xee\xd8\x81\\2\xa5\x08YTNRj\xfb)c\x18EXu\x1b\xbaqd\xbd\xdd2t#\x8d\x0b\\\x1e\x0b\x87\x97\x0c\xaemq\xd6#\x95\xa4h\xad\xd5)\xea\xe0i\xac\x87&lt;\x92$\x11]d\xb0\x0eo{J)\xcc\xe6\xf3\xea\xb5?\xfc\xe3\xa3R\xad\xf9\x84\x9a\xd0O\xfa0\xf5"\x83w\x01\x13,\xde\xa9N\x14\xc6\xe0\\C\x1a\x0bi\xc8\xec?s\x9d\xbd\xc3K\xb4\xf3\x19\xd6\xdb\x1djmL\xa9ew\rW\x060\x96\x94\x0b\xa9\xef+\xad\xc6c\xa5\x1a\xc3\xe4\xd1Di\xcfq\xd80vk\xfa\xcd\x9aa\xb3&amp;\xc5\x81\xe0\x1c\xce\xba\x9d\xa1Z\x1f\x14\x13\x1b\x06\xa4\x18l\x98#9\xe9"\'\x041\x8eT`\xe8\x06\xc6\x92\x19rb\x88\x03c\xce\x8cb\xe8Sa\xdd\r\x0c)\xd3\x8f#N`\xd9\x08n\xb3\xa1X\x85&gt;\x0e\xdb\x05\xbe\t;\x12\xa2w\x96\x99\xd7\x8eA\xf0\x01\xe3UZ\x12\x11\xacA\x8b\x8c\xa2\xde\xea|\x19\x81\x9e\xd3\x0fn\\?xH\xfc\x94\xc0\r\xd3\x17\xd2\x13\xd1\xccZ\x0e.\x1d1V\x80t,\xa5\xea$\x14\x8cq\xec\x1f]\xe6\xf2\xd5\xa7X,\xf6\xf0\xce\xa81\xa1\xaf\x95\x92k\xf9\xac\x7fr.\x0c\xdb\r\xeb\xe3c\xfa\xf5\n\x91D\xbb\xd05%9\r\xc4a\xabs{}\x87\x8c\x91\xdco\x89\xdd\x86\xd8oIC\x87!#\xde\xe3\x9d#%\x15\xc35\xbe\xc1\xd9\x00E\xa1\x10?\xb7H\xad\xd0\xc6\x9cH\xc0\x103\xfd\x18\xd9\x0e\x91\xbb\xab5\xc7\xeb5}J\x14\xa7\x9d\x81\x14\xf5;\t\x99y\xe3)\x08cJl\xb6[\xac?\xa1Y\xec\xb17\xbf\xacC\xad)\xe1\x8cc\xd6\xb4xS{\x08\xd6\xd6V\x95\xe0\x1d\xf4\xdb5]\xb7\xa5\xd4\\\xefAHj\noO\x8eS\x9dKq~8\x03\xfb\x18\x0c\xeb\x83z\xaa\x0b\x14\x97\n94\xa1a&gt;\x9f3\xf4=1&amp;\xc6q\xa0\xdbn8;9f\x1c{\xae\\\xbe\xc2|6\xc7\xedN\xd6\xd4\x19d\x87pS\xa9\xccC\xbfesv\xca\xea\xf4\x98\xb3\xfb\xf7\xd8\x9c\xdd\xc7\x06\x87\x0b-i\xe8\x19\xbb\r9G\xe2vKI\x11\x93Fm\x1dWv\xc1,x\x8a\x14\x82\x0f\x9a\x0f\x95\x8c3F\xfb\x8d6\x10\xbb\x11;\x8cHJ\x0ccb3\xf6\xd5\xb8,}\x12\x8e\xbb\x81\x9b\'+\xee\xaf\xd6$\x84\xd0\x04\x16mK[U\xfb\x94\x11\x11Tc\xc2\x05R\x11\xb6\x9b-\xeb\xd5\x8a\xd9\xde\x12\xdb\xb4;l$\xf8\xc0,xl\xd7+A\xd1LRJI7\x92\xadO\xe8\xd7\xc7\x04gq\xbe\xe5\xf1\xb9\xed\x93\xe7Q\x1f\xd6\xc0&gt;2\xc3:?\x80\x1f\xf8\x9d\x14\r\xb0\xa6\xf6\xc7:\xd6\xeb\x15\xdb\xd5\x19\x9b\xd5\x19%e\x82\xf75,\tF&amp;\t4\xb331\xa9\xe1-\xf6\x1d\xdd\xd9)\xdd\xfa\x8c\xbe\xdbpvz\x97\xe3;\xb7\xd9\xf6\x1d\xfd\x18\xe9\xbb\x9e4\x0cub:cJ\xc1Q\x98\xcd4\xa7\xf3\xd6\xb0?o!\x8e\x84\xd0(7\xcb\x19\n\x85L&amp;#\xc4\x9c)\xdd\x1a\x10\xfa\xa4\x1e\xaa\x8b#\xd9Z\xbadX\xf5\x1dC\xec\xc1d\x1agY\xce\x0cG\x0b\xcf\xfe|F\xdb\x06\xac\xf1`=\x98@\xc1\x92\x92be}\xb7e\xe86xg\x95\x19k\x04\xef\x1c{\xb3\x86\xdbg\x85\x18\x0bXE\xef7\xdd\xc0A\xcc\x1c\xdfx\x93\xb7\xca\xc0\xa5\xab\xcfr\xf0\xd4\xf3,/]\xc1\xf9\xf0\xc4F\xf4~\xd7\xf7\x83\x18\xd7GbX\x17\xb1\x93\x0f\x9e\xfc\x9dC\x12\x13\x04e\x8c%4\x01g5\xb4\xf5\x9b5\xe3\xd01\x9b\xcd\x98\xcf\xe7U\xbdE\xbd\x86q\xa1\x02\x8efw\x00"\x85\x94\x13\xe3\xd0\xd3o6t\xab\x15\xdd\xea\x94\xb1\xdf2[.\x89\xb9pz\xba\xe6\xf4\xf4\x94\xbe\xeb(\xa9\xe0q\x04g\x98\x05\xcb\x983\xce\x08\x8b\xc63sVG\xeacV&amp;\xabot\xb5\\\xbf&amp;\xa6\x91l\x8a\xa2\xf2\x06\xc6T\x18c\xa1\x1b\x12\x9b8\xd2\xc5B\x1f#\xc6B\x1b,!\x18\xf6g\x96\xfd\x19\xccB\xc1\xbb\x82\xf3\x86\xd04\xb8fN1\x81\x94\x0by\x181\x08e\x1cu\xb86x\x8a\x11\xbc7\xec\xcd\xe78k\xc9i\xc4\xba\x80\xb1\x86\x9c\nf\xc8\xdc\xfd\xee\xf7Y}\xfd\x1b\xec\x1f\x1e\xf0\xc2\x97\xbe\xccK?\xff\x17\xd9\xbb\xfa\x0cS$x\xf79\xff\xf8\x8c\xeb\x076\xacG\x01rS\xce\xfc\xc1\xbe\x83\x99\xdcMm\x99\x18BpH\xc94M\x003\xa7\xdf\xf6\xaa\xc6\xe7\r1\x8f\x94\x0bn\xbe\xc2\x8e\x15\xaf*\xa4q$\x8e#\xb9\x14\xac\r\xec\x1d^f\xef\xe8\x08k\r\xc3\xfa\x8c\xe3\xdb7\xb9{\xfb\x06\'\'\xf7\xd9lz\xfam\x0fIg\x0cs\xa9\xed\x98\xa2\x0cU}\x0f\x985s\x9av\x81\xb5\x90zE\xe5\x91D.\x861\x17\xbaad\xdb\r\xac6\x1d\xa7\xfd\x96&gt;\'\xc611\xa4\xa2\x10C\xe5\x8e\xf5c\xaa\xca~\x81\xc5|\xc1\xfe^bi\x85\xc5r\x9f\xb6\xddG\xb2h\xa1\x91\x12i\x1c\x15\xcbChf3\x0e\x8e\x0eY\xde?\xa6\xf7\x16\xdf\xb4\xccC\xc3\x02C\xd3u8\x036\x15\xc6\xe3S\xee\x7f\xef\x15\x0e\xae\\cq\xe9Z\xd5,5\x1f\xe4b\xbc\xef\xf5~?\x03\xfb\xd0\x86\xf5~\x08\xef\x87kg\n\x12{\xe2\xfa\x8c\xee\xf4\x84|\xe7\x1e\xe9lM\xc9\x19\xc90\x0e#)\x0fX\xbb\x0f(}\xe4bK\xa4R\x00\x14C\x8a*?\xd4\xce\xe6\xb4\x8b=\xac3\x18\x19\x89\xdb\x13\\*\xc4EaX\x18\x86\xad\xa5\xdf\x162\x89T\x121\x1a\x9a\xe0\xea\xf0\x83\xa1\xa4Bi\x0c\xae\t\xb4{{\xb4\xb3=$f\xb2\xc9`"b\x84T\x84.\x8e\x1c\xaf7\xdc\xbe\xb7\xe6\xf4l\xcbHb(\x89U72*\xad~\xa7+_\x80\x98\x12m\x08\xec\xcdZ\x8e\x96s\x9e\xbe\xbc\xcf\xf3OG\xae]s\xcc\xe7\xfb$3\xab\xfa\x13\x99\x92#\xd6:\xfcl\xc6b\xb9\xc7r\xbed\x93\xc1\x19\xcf\xb28\x0eD\xd8\x13\x90\xed\x96\xd5\xc9\x19\xe4H\xeaz\x16\xfb\x87\x1c\xbd\xf0Y\xf6\xaf?]?\xd5|d\x00\xe8\xfby\xaf\x0feX\x1f\xa8m\xf0\x01\xf0\xb6\x92FJ\xb7\x85\xed\x16?f\x96\xb6a\x83c\xcc\x89\x820o\x1b\xc6X\xd8\x9e\xadh\x97{\x98\xdd\x00j\xd5x\xach\xbb\xe4\x8c5\x86\xd9r\x0f[\xf9I\xb1;\xe1\xde\x8d7x\xe7\xb5\xd7x\xf3\xcd\xb78&gt;[q\xef\xe4\x8c{\xf7\xcf8\xdb\x0c\xf4\xc3\xa8XPp\x1c\xce\x03W\x16\r\xa9mX\x1b\x87\xdf8\xae^\xbb\xc4\xe13\xcf2?\xbcB\x19\x12\xa5\x14\x86\xd8\x91%1Fa\xd3\'\xee\xae:n\x9d\xac\xe9\xba\x01q\xd0\xe5\xc8\xa6\x8f\xe0Z\xe5~yK\x12\xe1\xe4\xacc\xbeX\xb0\\\xec\xd3.\xf7\xd8t[\xbe\xf7\xfa}\xb6\xeb\x11)\x85g\x9fuZ\xb5\x96L\x8e\x1b\x9c\xcb\xb8v\x0fk\xad\xaeJ\xf1\r\x81\x1e_\x0c\xfb\xc1s)xf\x8d\xa3\x8c\x031\x17\xc6\xf5H\xean0\x9f\xff\x19\xd7?\xffE\x96\x97\xae`C\xf3\x91sd.\xda\xc1\xc3F\xf6\x81\r\xeb\x83\xf6\xa2*\xa4\xf2\xbey\x97H\x81\x9c\xb4*\xcbI\xf3\x89\xc3\x03\x92s\x94\xb3cV\xfd\x06;\xf3X\xd3\xb0&gt;9\xa1I\x89\x1c\x87\xf3\x01\x88)\x92\xd6\x9e\x9dog\xaa\xe4g\x0c\xdb{o\xf3\xe67\xfe\x98o~\xeb\xdb\xdc:Mt\xd2\xb2\x8d\x8e\xdb\xab\x8e\x9b\xf7O\xd8\xf6\x89\xc5lN\xd3\xce\xb1\xce\xb3\xde\xf6\xe4~\xc3\xb0\x18h\x9d\xd7\xa6\xb2kx\xfa3\x8e\xf9\xa5k\xaa\xcf\xd0xJ\xea\x18\x86-\x0c\x91~\x18\xe9\xfa\xc4\x90\x0bc\x85\x01\x861#b9\xda_\x82s\xf4%BI\xcc\x97\r\xcb\xe5\x8cKG\x87\\]\x1c\x90\x9dg\xd8Z\x0c\x81\xd3\xe3-\x8b\xe6&gt;\xcb\xa5\x86\\\x1f&lt;\xc5{Lk\xaa\xecR xG\xe3,\x8du\xcc\x83\xa3\r`\xc8\xd8\xc6\xa9r\xa1\xb5\x0c\xfd\x96\xd3\x1b\xefp\xfc\xda+&lt;\xf5\xd3_\xa6m\xda\x8f\x95\xe8\xfe\xb0\x07{b\xc3\xfaH\x96\x84\xbd\x1f\xa1qsJ\xf7\xda+tw\xefb\x96\x87,\x9ez\x8e\xfd\x83=b\x19\x18\x86\x15\xe3\xd0\x93\xc6\xc8\xd0ulR$\xc7\xf1\xc1\xb73\x06\x83\xc3zAL\x01\x89tg\'\xdc~\xed;\xbc\xf9\xca\xf79=\xcd8w\xc4\xf5\xa7\x9e\xe3\xee\xc9[\x9c\x9c\xdd\xa5\x9d{\x8c\xb3\x1c,\x97\\\xda;\xa25\x8e{7o\xb3Zo\x91\x929\xdaw,\x9a\x96b\x1aRv\xf80c\xb1X\xc2\xd0\xd1\x9d.\xe96g\xf4]BRQ(\xc2\xab\n\xf30\x8c\x90\x0b\xad\xf5\x1c\xcc\x02\xae\xf5lFa;f\x16{-!8\x0e=\x1cX\xa1=\\b//T\xe0-\x8e\xacNV\x9480\x9f\xcd\xb0\x8b\xf9D\xec\xc7\x18\x87o\x1b|\x13hC`\xee\x1c\xad\x15$\x0e\xe0\x1c\xa1m\xf0\xd6\xe2\x9c!c\xe8\xd7\x1bN\xdfy\x8bq\xb3\xa2Y\xee\xefxj\x9f\x84q=\x91a}\x14F\xb5K\xe8\x1fi\\\x82\x11!\xdf}\x87\xb3\xaf\xfd\x01\xc7o\xdeb\xfe\xc5/\x11\xf6.\xd3\xec\xef1w\x9e\x99\x18\xce6\x1d\x9b\xf5\x9a\x14#\xe2\xacB\x0ejQ;^\x91P(\xa9#\xae\xef1l\xce8\xbbs\x8b\x93;w\x99\x1f\xbd\xc0\x97&gt;\xfb\x0c\x06\x878\xc7+\xe9\x94n\xb9\xc4^:d\x8c\x19+\rG\xad\xc7fam \x8aA\x8a!\x84\x86\xeb\xd7\xafqx\xf9\x1a\xed|\x0e\xa5 )a\x8d\xa1i[\xda\xd0\x12\xec\x88\xb7\x0e\xe7\x0cm\xebh\xf0\x98,\x98Y\xa1\t\x8e\xd6d\xe6\xde\xb3\x0c\rC\xa3\xb4\x98`\x03\xfb\xce\xb0\xe7"\xcb\xe5\x82v\xde\x82\x11\xc6\x1e(\xa3\xd2\xb0E7\xb7*g\'a\xadQi\xefY\xcb|\xd6\xb20\xd0\x92\xa1\x1fqm\x8b\x17\x85K\xac\x08Y\x0ci\xc8l\xef\xdf\xa5;\xb9\xcf\xf2\xcau\xa6\xee\xf4\xc7)\x1c2\x19\xd7\xfb\x1a\xd6\'\xb2\xceP\x80\x92\xc9\xf7\xef\x92\x8f\x8fq60?\xbaJ\x98\xcdu\xe4K\n\xfb\xed\x9cMh9\x8e\'\x18\x81\xe5\xdeAUl\xc9;.\x17\x92\x91aM&lt;\xbd\xc5\xea\xd6k\xac\xee\xdf&amp;\xd1r\xe9\x99\x17y\xfe\xcas\xcc\xf6\x8e\xc81s\xf7\xedwx\xfe\xda\xd3\x98\xbe\xe3\x0e\r\xeb\xf5\x19%\x15l\xd71\xf4\x1d3_\x98\x1d-h\x83g\xafm98\xdc\xe7\xca\xb5K\x1c\x1c\x1e\x10\x82*\xfeY\xef\xf0\xa1\xc1\xfb@h&lt;\xf3E\xcb\xb2\x9b\x11\xeb&amp;\n\x7f\xb0\xc0\x98\x05\xc1\x88\x16\x03\xc1\xd1\xb6\x9e\xe0U?\xa2\rs\x9c\xd3\xd7\xfa\xe01^\xc3\xf8r\x19p\xce\xd2\x84\x86v\xd6\xa8\xe2\x8d7\xaa\x0eh-6g\x16m\xcb0ki\xf2\x88/`}\xc0\n\xd8R\xf9\xf4\x95\xc3\x1fKf\xec:\xc6\xcd\x8aR2*\xa9\xfb\t\\N\x91\xf76\xac\x8f\xcd\xa8v\xee\xeb"w\xaaP\xc6\x04Q\xb0"\x98\xac\x08\xb8q\x0e\x1fZ-\xcdgs.\x1d\x1e\xb1MY\xa7\x85w7\xde\xf9\xfb\x19\xeb\xb1&gt;\x10\x9a%\x8b\x83\xab\x98fN\xbb\x7f\x85\xb0h\xc1\x15\\\x08\\}\xee\x1a\xed\\\xd8_\x14\xae,\n\xf7o\x1aVg\x1b\xba~\xc0d\x95\x10r\xd6\xd2\x06O\x1b\x1arT\x1d\x89\xe5bIhT\x1a\xdbX\x8fs-.48kX6\x8e\xc3Y\xa0\xefz\xce\xbaA\xb5\xdd\xeb\xfc`\x89B1\x05\xeb\x0b\xb3\xa6\xa5i\x0c&gt;Xl\xa3\x9b\xee\x95\xdf\xae\xedq\xeft064\x01\xef\x94\xd9\xe1\xaa\x1cw\xc9\xea\xc5\xe6\xb39k\xbbf8\xed0iT\x10\xb7&gt;\xf44T-\x8aR0\xc9V\x8e\xd7\'+o\xf4X\xc3\xfaX\x8c\xeaQ\xe0\xd6d`\xd6*\x8a\x9e2l;\xd2\xfd\xdb\x94\xee\x05\xec\xe1!\xed\xd1eJ\xd3\xe0\xf7\x0f9\x18:\xee\x1e\xdfgs\xf7\xb6\x02\x83u\xb2T\x81U\x8f\t3\\\xbbd~t\x95foI\x8e#y\\\xe9\x06\xd5\xc5\x01\xd67X3\xd2\xf8\xc8\xb2\xc9\x0cm!\xb6\x85\xd2(\x03\x82\xc6\x10+~\xe5l\xa1\xdd[p\xe5\xe9g\xb9tEC\xa1\xf3\x01S\x95\x91\x8dqj\x88\xc6\xd3:\xcf\xa5\xf9L7x\x19\xc3\x90\x95n\xe3\xc5\x10\xac\n\x83x\xc0\xe4\xa4\xaf\xf1\t\xcb$&gt;\xa2\x03#\xd6\xd7\xb1\xb2\xd6\xab,\xa5q8\xe3U\xd8\xad(\x17\x1fc\xd8\xdb[p\xef\x06\xdc\xbfu\x17\xbbYa\x9e\xba\xcc\xfe\xfe\x1e^\x94\x1dkk\x9e\xe5\x8d%\xf89\xcdb\xaf\xaa\x1c\xfe\x90\r\xeb\xe3\xf2T\x0fl\x07\xbdhT"`\x02v\xae\xbd1\xe9\x8e\x89\xf7\xef\x91NO\xe0\xfa3\xf8Y\xcb\xd2\xc1|\xd1\xd2\x0c3\xb6qd}\xe7\x0e\xc67`\xa7\xbb\xb1\xca\x15\x19\x8bk\x97\x15v\xd8#\xf5\x1d\xc3\xfa\x8c\xb8]\x91\x86\x01\xdb,H)\xd1\x9f\xde\'n\xd6\x004\x8b\x05\x8b\x02\xb6iXf\xc8Y\xc5A\xe6\xfb\x87\\\x7f\xe1\xb3&lt;\xfb\xfcg8&lt;\xbc\xc4b\xef\x08\x1f\x1aJ\x1c\x00\xa3\xa4\xbfTp\xe2\t~\xce\xdeBy]m\xd30d!_ \xff5Ah\xbc!8\xad\xf4\xbc\xf7\xf8F\x873\xbc7\x04\xaf\xba\\\xc6\xf8J\xfa\xb3;\xd2\x9f)\x05\xb7\x9b\xe81\n9\x04\x8f)\x85\xedv\xcd\xea\xcc\xd14\x96ffTK\xa4J\x897m\xc3\xec\xcaUfG\x97\xb1\xde\x7f\x14\xfd\xb6\x0foX\x1f_N\xf5&gt;#\xde\xc6\xe0\xaf]\xa</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>794590</v>
+        <v>793051</v>
       </c>
       <c r="B17" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Artur Jorge</t>
-        </is>
+          <t>Thiago Carpini</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x00&gt;tEXtComment\x00xr:d:DAEewil2SDw:3449,j:8128288569400757339,t:24013019A\xe4y\xae\x00\x00\x04\xeeiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n        &lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n        &lt;dc:title&gt;\n        &lt;rdf:Alt&gt;\n        &lt;rdf:li xml:lang=\'x-default\'&gt;Elabora\xc3\xa7\xc3\xa3o de fotos - 1&lt;/rdf:li&gt;\n        &lt;/rdf:Alt&gt;\n        &lt;/dc:title&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n        &lt;Attrib:Ads&gt;\n        &lt;rdf:Seq&gt;\n        &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n        &lt;Attrib:Created&gt;2024-01-30&lt;/Attrib:Created&gt;\n        &lt;Attrib:ExtId&gt;a7171fb2-0707-483d-93f3-10bc642ccb84&lt;/Attrib:ExtId&gt;\n        &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n        &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n        &lt;/rdf:li&gt;\n        &lt;/rdf:Seq&gt;\n        &lt;/Attrib:Ads&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n        &lt;pdf:Author&gt;Jo\xc3\xa3o Izzo&lt;/pdf:Author&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n        &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n        &lt;/rdf:Description&gt;\n        \n        &lt;/rdf:RDF&gt;\n        &lt;/x:xmpmeta&gt;GCq\x02\x00\x00\x03\x00PLTE\xff\xff\xff +A\xff\xfe\xfe%0G%0F#,A ,B"-C$/E#.D\'2G\x1f(&gt;%.C(3J" \x1e\x1d&amp;;\x1a 0".D\x1e\x1c\x1a\x13\x19\'%$"\x10\x16#")?\xafrR\x80K.\xb2uU*%!\x15\x1c*\x1b#6\xb7{\\\xc3\x86k\x17\x14\x12 *@.(%\xbe\x80d\x17\x1e-\xba}_\x1b\x19\x16\xc8\x8dt.,)\xfd\xfd\xfd;50\xb5xYC=9d?,)(&amp;\xc5\x88n\x9eeG\xaapS2/,\x99dF,7L\xca\x8fv\xa5hG\x0f\x14\x1e\x99`A\xb0w[\xc7\x8bp\x95]@\x1f*@\x9fcB\xa2fG\x86T6530\xf9\xf9\xf9H0#\xc1\x82j\xactW\x91Y&lt;yH-\xc1\x82e\xacnN\xa0jK80,\xca\x92{\xa9kI\xa4jMj;"(!\x1c\x9e_=\xa4cB\x89M0\xa5nQ]=,\xbf~_\x83N1\x9bgM&gt;,#E*\x1b\x95aF\x8cV70&lt;Q\x91]&gt;\xf5\xf4\xf4\x8a\\C\xb4tX\xafpO\xf1\xef\xef\x8cZ=wC);74:&amp;\x1d\xbdx^\x12\x10\r4,(X0\x1b\xb9u\\*\x1a\x12\xb2nU\xa9lN\xafjJsJ4X8(%\x1d\x19jF3\x95dN]7#\xb6w_a;&amp;~O5\x82R8b6\x1e\xafjQq@\'HC?yL2\xbazY\xb4lMz]O&gt;:72\x1f\x14\x8aU&lt;iM&gt;ydZqF.\xbd|d\xcc\x96\x81oRE\x9aY8kB,!(;\xa3_=\x96Y9\x8bQ4!&amp;6@%\x15R8*O4%P0\x1f\xa9gN\x9akV\xadeF\x90_C\x0b\x0e\x16\xa8bH1$\x1c\x90ZC#/F_B4\x87_M\xa9a@NGC\x84V=\xa3rVP,\x18\xaalX\xb6pR8DY"\x18\x13~T=qM;\xa3p]\xa9w\\\xba\x83l\x84XB\xaeyc\xa1dM\x81H5\xa0^F\xb9tV_G=yXG;!\x14\xe6\xe2\xe2\x1e$2\x8f`J\xa0jR\x99ZB\xeb\xea\xea\x9bbK\x80E+C6/\x9fZ:xN7\x06\x08\x0c\xbc\x86vQMJ\xb6uSrZOyR&lt;\xb2\x7fdK=5\xc4\x85p\xb3m]V&gt;3\x90Q4\xdf\xdd\xde]VS\xd8\xd6\xd6\xcd\x9b\x89[(\x19\xd2\xcf\xd0\xce\xc8\xc7\xbc\xb0\xac\xc6\x88v\x90F9\x95R&lt;\x94V3~ja\xb1eI\xb6xh\xc3\xc5\xcb\xbb\xb9\xbb\xac\xa2\x9f\xacYRk3 hb_\xc5\xbf\xbd\x7fwtV_q\',;\x96\x8f\x8e\xa0\x99\x96\x8c\x83\x80u9&amp;\xad\xad\xb0fn|\xaa\x90\x89\xa5\xa3\xa6M"\x13\x91hV\xd0\xb2\xaa\x8epe\xac\x80tt{\x89\xa4QD  )42&gt;smj\xa0xjCPc\x88\x8d\x99iTKMTa\x93\x98\xa3\xdf\xc9\xc4w3\x92\xd8\x00\x00 \x00IDATx\xda\xc4\x98\xffK\x1by\x1a\xc7K\xfe\x80\xf9a\x18\xd0\x0e4aB&amp;\x93q\x9c\xd8)\x16\x9b\x92:\x89lu\'z\xd1\xad\xa9i\xa59Mo\xd4\xa1\xb6\xd6h\xab\xb2\xc4\xc8\xf4\x16\xebm\xa9\x0b\xba=\xf7.\xa5mv9\x89]z{\xe0\x1e\xa1K\x8e\\\x8fHk\xf1\x8c\xa5\xedB\xb9\xbb\x16\xa2\xa0R\xf0g\x7f\xbc\xf7\'\xde\x7fp\x89;:_\x82?\xf8\xe2\xfd~\x9e\xf7\xf3L\x8e\x1c\xf9\x7f\x0fK$\x9b\x89F|.\x9f/\x82\x1bN\x97\xcf\xe5\xb2\x1c\xf9%\x0f\x8b\xc5\xe2\xca\xec\xedl\xef\xed}\xdc\xdd\xdd\xda\xdf\xda\xda\xdd\xddy\xfbz\x1dh`\xb3\x90?\xff\x12P\xae\x88/\xf3q_RM\xd104\x8e\x95\rC\xd4%I*\xec\xef\xbcY_\xcff#\x11\x9f\xcfr\xf8P\xbe\xd7\x9b\xdb\x05]\xe4p\x98\xbaB\xd14\xab\x89\xa2\xc0q\x8a\xa8\xa7\n\x85\xad\xed\x0fo6\xa2\x87\x8de\x89f\xb7\x8b\x1288NR%IP\x14A\x909\x81\xd3\x15\x85eYN\xc4\x91\xda\xdf\xccd}\xaeC-\xa9\xecvA\x8c\xe3\x7f\x1b\x86\xc0\x80\x84\x93e\x8a\xa2\x18\x8a\x15(\x86\xc6\x13\xcdp\xaa\xa9K[\xef3Q\xdf\xa1\xd9\xe7\xca~(\xa6\xa4\xb8\xa4\xc5%8\xa8\x08*\x03\xa9\xc0Ub#\x17F\x96e\x06?bag#zH\x15\xe6\xf3E\xb7r\x10J\x87y\x8a\xa9\xb1A\x8ecdA\xa1)\x06B\xd14\xae\xe4\x91a@\x07\x87\xb7\xded#\xbeC\xe9\xbf\xe8\xee\xaa\xa8\x9b\x9ah\xc6M]TY\x8e\xe5\xa0\x95B\xc94_\x82\xe2y\x9ef\xc0\x07\x05\x19\x86\xd5\n\x1f_g#\x15\xd7\xcb\x17\xdd,\xa6r&amp;)+I\xd4L%HP\x14YWU\xf0\xa0\xb0l\x03\x84\x89\x92U]U\x88btp\xf5C\xa6\xe2X\x96\xf5\xedx\x0e\x16r\xaaf\xa0\xf9(\x1e\x86\xa1\x94t\t\x0c\xa8\'\xdaf#r1\x8a\xaa\x03TahF`\xd8\xd4N\xa6\xc2\xfdh\xf1mK\x9a\xa1\x99\x02\xa5\xb1,#S6\x9a\xa6q\xaa*\xa9|\x81\xa2\x89^\xb4\x8dQLIE\'*\xaa\x8c\xa2S8iw=RQ0\xdf&amp;\x9c\x93D\x89\xa3\x05\x1eY@\xd9x\xc66\xc0\x93\x06\xe48\x96%\x11\x81\xa2\xe2q7\xf3y\xc8\xa5\x12V\x963\xa4\xad\xcdH\xe5\x06\xa5\xc5\x12\xddRDSQ$\x96t\x1d\x05\xcbx\xdb\x1flp\x92\xe6\xf1\xc4\xf32iC\x1b\x8d\xc2\x12\x04!\x9e\x8a\xab\nR\x82\x8f\xb1\\\xeaC\xa6rX.\xdfF^\x14%JV\x18b\x16\xcd\x0f\xd8l6\x9c\xfc@\xe9\x027!\x9aL!\xed\x15X\xa8\xabfJ\xd2eT\x1f\xc5\x19\x85\xcd\xca\x95\xbd+\xba\'+\x9a\x8e\xe9\x87\xf2\xe6\xa1\x10p\x06\xfe\x010r\xc7\t\xfd`\'O\x05\x05=\x9e\xcf\xe7\xe3\xd0K\x97T\xd2\x16\x9c\xb1\xbf\x11\xa9\xd8\x1c|S\x94M\x8eexT\x91\x80\x94\x02\xcb\x81`\xff;x\xdeFq\x0c\xcb*\x80*\xe4\xf3)S\x901\x9aD\x92\xb4\x82\xf8\xa1RXG6\x8a\xa6n\xaa\x14\xfaO@VQ\xc8\xcd\x01\x14T\x89(\r\xb1H\xa9\xc5P\xe1\x8a(b^\x07\x05A\xd5\xe3\xb0\x9bBn\xd0\x8cV\xccT\xc8E\xdf\x86\xa4\xa3\xebQW\xbc\xc0\xd0\x82*\xa3\xba\xd2\xb14\xe4\xb2\xc5\xfa\xc8\x8dO\x834\x16\x0c\xc68\x85\x0b\xb2$\xc8d\x92\xf4\x14\xb1QH\xbd\xf7U(\xb3\xf6\xe2\xaa\xa8\xc0\x10E\x96Y\x8a\xc6\x02\x03\x82\xc1`\x1aGr.\x96\x8e\xc5\xd2i[:=\x18C\xe7):\xacT5Q\x15\x04\x05qF\xdbX\xd6\xd8\xa9\x0c\x96k=\xaf\xca\x06o\xa31\x981_bA\x96\xe3\x82\xc9p\xb8\xaf\xaf\xefV\xd2\x8fk\xb8o0\x99\xc4\xc7d2\xa9\x19\x86\x1e\xd7\r\x92dH\x12F\xc6\x19,d|\x95\txU\xd0Y:\xc8\x90\x94\x82UIMJ\xad\xadu\x8e\x8c\xd4\x0e\x0f\xcf\xcf\xcd\xaf=\xf8qn\xce\xff\xe0\xaf\x0f\x97F\x86\xfd\xfep\xd80L\x8d\x0b\xc6\x10\x1a6\xd4"E\xb1\xda\xc7J`\xb92\x05\x96\x15\r\xec|\x18z\xe9\xd8\xad\xbe\xb0\x7f\xed\xc7\xc7K\x17?m\xab\xbb?\xf1\xec\xd9\xf5??|8\xfat\xb4k\xb4\xeb\xbb\xdf\x8f\xde\xff\xf5\xd2\x9d\xaf\x01\xc6\x05q\x90\xa5\x02\xc9\xc1j\xdb\x95\xc0\x8a|4\xb5`J\xd1\x821&gt;\x96\x1e\x0c\xfb\xe7\xc7\xa6\'\x1a/\x9e\xb9Vu\xf4\xe8\xd5\xde\xe3\xd7\x8e\x9f\xfb\xee\x87\x17/\x9e&lt;yq\xea\xe6\xcd\x17\xa7\xce\xb5\xfd4\xfa|\xd8\x9f\xe3b|i\x16 \xceX\xb3\x90-\x7f/\xfa\xb2EUP%3HR\xa0\xcf?\\;\xd9}\xda\xdb\xd1\xfay\xd5\xe2\xca1\x87#q\xccnor[\xddn\xab\xb5\xc9n\xafq4\xdb\x1d5\xc7\xbb\x9e\xd7\xfa\x93\xb4\xadD\xc5\xd3\xac\xa8\xbf/?\x96kO74\x94\x0b=00x\xe1\xeb\xb1\xb3\x13\xdd\xb3\xed\x1d\'\x87zWj\x12\x0e\x87=\x04(\x8f\xc7\xe9q\x97\xd0\x9a\xfb\xfbC\xf6\xc4\xb1\xe3\xe7.N\xcc\xdf\n\xc6\x06J\x03\x8a\n\x8a\xbb\xe5_#\xa2\xfb\xaa\xa2r\x1a3`K_\xb8\xf1\xab\xc9\xeeOf\xbf\xf4v,,\x0c-&amp;\x12\xa1\x90\xbd\xb9\xc9\xed\xf68\xf1\xebq:\xeb\x9dN\xa7;\xd4\x1cJ\xd4T]\xf3^\x1e\xebK"\xcd\x00\xc63\xe2V\xd9\x8b\xcb\xb2!\xb1\xaa@\x196~\xf0B\xe7o\xcew\xcf\xce\xb6\xb7\xb7\xffqah*\xe1\x085[\xad\xcdn\x08\x05\x1a@\xd5\xd7\x07\x02\xf5\x017\xb0\x1255U\x9f~[\xeb\xefK\x93v\xa4\x14\xbd\x90-\xbb\x87\xbbFP\xc1\x06\x1a\x1b\xf4wNW7~2{\xba\x1d\x1e.L-\'\xecV`\xb9\xadNxX\x0f(g}`&amp;\x10pZ\tVU\xd5\xd1\x96\xb6Kw.\x84Y\xb2\x83\xe9j~\xbd\xdc\xc5\x15-\xb0$\xb0\x11\x9fs\x9d\xd7\xab\xbb\xdf\x11\xb5\xee&gt;\x1a\x9a\x9aZ\xb6\xbb\x81e%\xfe\xd5{\x0e\xa4\x02\x96\xc7\x13\n\x85\x12+\xbd\xbd-\xd7\xda\xbeYz\x90S\x10\xac\xaa\x98z]v\xac\xa2\xa6\x08q\xd1\xd0\xfc\xf3\xb5\x93\xe3_\xa1\xb2\x08\xd6\xc2\xd4\xe2r\xa8\xb9\x99xH\xdc#j\x05\x08Y\xc0CL\\\xe9]\xecmim;\xf1\xed\x179\x83Ue\xc9\x94\xca\xde\x8a\x99\x82*H\xa6\xae\xe5H4\x8c7\xa2\xb6\xbc\xed\x1d\xc0Z^\t\xd9\x01\x06\xae\xfaz\x0f\xe2\x01X\xb0\x11\x1e6\xa3\x17Wz\x87ZN\xd6\x9d\x98\x18Y\xc5\xe2\xafhj\xea\xed\x91\xb2c\xe9:\'\xeabnu\xbe\xf6luc\xf7\xbb/\xff~\x17j\xfd\x0b\x8d\xe8@#\x86\xacn\x92\x0e$#\x88b\xa4\xb4`bb\xaa\xb7\xf5\xe4\x89K\x13\x9d\xab\x1aKa\xcf\x89\xbf-\xbb\x89yEU`\xc3j\xceO\xb0&gt;#X\x8f\x1e\xa1\xb8V\x96\xedHR\xab\x95\xd4\x95\xd3c%\xbd\xe8\x81\x85\xf6P\xc8\x01\xb9\x86Z\xcf\\j|\xd6\x993\xf0\x82\xab\xaaR\xd9\xb12y]\x90\xa4xj\x15\xb55]]\xfd\xd9;"\xd6\xdd\xa1\xa1\xc5\xc5\x84\xbd\xd9NhHq\x01\x0b\x8ay\x10\x18v\xfbA\xcd\xb7\x9e&lt;=~\xbd3\xac\xc9,\xde%\xe3\x9b\xe5\xc6ZO\x91o\xd4R\xd2\xea\xdcp\xed\xf4\xd9j\xa2V\xc9\xc5\xa9\xa9\x95c\x08.\xf7\x81wd\xf6\x94&amp;\x90\xb5\xe4\xe1r\tk\xb2v-\xcc\n1\xc1\x94\xf2\x1b\xe5N\xd3LQ7\xc5\xb8\x04\xb5\xe6j\xef\x10\xac\x03\x17\x91\xf2=5v$\x04I\xf7z\x8c\x1d\x92a\x88V&lt;8\x12++0\xd1\xdb0\xd99o\xb0x]T\xa5\xf2\xc7id_\x14\xc9\xabL.&lt;\x7f\x03X\xff|w\x10\x10CS\xcb\xcbW\xfa\x01s`^s\xbf\x95$*iI\x0c\xeb\xe5\x92Z\xed\xe37\xfc\xe1$Y\x1a+\x81\xb5%\x01+\x1f\xcf\x85\xfdc\xd3g\xcf\x7f\x05\xac\xbb\x1d\x0b\x98\xd4\xcb\xfd%\x0f\x11\x0b\xb0\x10\xf7\x99\x19\xa4)\xd0\xacv{\xc9\xc4\x8e\xf6\xee1\x7f\x18{*\xc3j\xfbe\x7f\xf9qm\x8b)\xbc\xf6IPk\xec\xfa\xe4y\x04D;\xb6\x9a\xa3==\x84\xca\x19 ,d\xfc\x04f^\xcd\xbcz\xf5j\x06\xe9\xe5nB\'V\xb5vxO\xdf)a\xd1,\xb7_\xf6Q\xed\xda\x11\xe3\xf1\xbc\xb4\xba\x1a\x9e\xbf3\t\xac\xd9v\xef\xc9\xcf{z\xae\xdc\xec\xc7J\x03\x98WP\xa9\x9eHE\xa8\x80\xe5\xfc\xf9\xa5\xdd\xeeHT\xb5\x9e\xf464\x0e\xf7\xf5\x05\xb9\x18k\x14\xa3\xe5_\xb7\xa4\xb8\x84\xe2\xca\x85\xe7F&amp;\xc7\xcfc\x05\xac\xfb\xcb\xbd\xab7\xaf\\\xb9\xe2hjr\x06J2\x1d\xd0\x11\xc0\x80\xf3\xe5\xcb\'O\x1c5\xc7\xaaZ\xcfx\xbd\x97F\xfcI\x96\xa59\xb6\x02X\xef\x81\x157\xa5\xdc\xea\x83\xc7\x93\xcf\xc6/\x9fn\xa8\xfb[\xdd\xbd\x9e\xabW{\xfa\xfb\x9b^:\x7f&amp;\x8a\x05\xb0;8\x9d\x81\x00\x90\xfe}\xf3\xc9\xa9\x1f\xfet\xedxKK\xdb\x19o\xc3\xb7\x9da\xec\xf4,W,\xff\xd6\xfc&amp;nB,3\xb7\xf6\xc5\xe3\xeb\xcf&amp;~{\xe9\xf2\xfdo\xf0B\xd1\xd5\xd5v\xf4\xaa\xe3vSS\x93\x950\x05\x9cM\xb7o\x9f\xfait\xf4\xe9\xd3\xd1\xef\xbf\xef\xeaj\xa8\xbb\xd7V\xe7\xf56,\xf9\xd1\x89A\xaeX\xf6\xafG,\xff\x89k)I\x02\xd5\xef\x1e?~\xbe4&gt;\xfd_Z\xed\xf6\'\xad,\x8f\x03x\xe2\x1f\xb0o\xc1&amp;\x9a@Xw4DYR\xa3%j\xb6&lt;\x88(\n\xa8\xe0`\x1c\xae\x95\xf4Fo\xaf\xa0"\x82\xd7 \xcc \xb0@\x80\xec\x8c&lt;\x84\x12\xa1&gt;\x90\n\xcac\xe9\x06\x19(\xc6\x8eV\xad;-\xdbq\xda\xb2\x9b\x8d\xe9&amp;;c\xd2\xb5S\xb3\xc9\x9a4\xd9=t\xfe\x85\xdb\xc3;^}\xf2;\xe7\x9e\xf3\xfb\x9e{\xcd\xe6\xdd\xc8\xc0\xca\xca\x8c]\x9brC\x14\n\x85\xd9x\xfd\xe8\x88\xd9\xa9f\xe5\xb53S\x03\x03\x03\x91\xe0;\x8f\xca\'\xcd\'\xba\xe8Mt\xdf\xca\xdd\xe9k\xd7H?\xe3\x7f\r\xf1\xe6\xdex}}\xfd\xe1\x03\xab\xf5\xc0\x9aQR\xa9\xd4\x99\x99\x81\x9b\x8f\x86&gt;\xbf9\xcbq\xa5h\x10\x86\x80\x8252\xd5\xac\x84\xcc&gt;P\xc9\x8dK\x99\xa0L\x95\x952\x18*\t\xbdE\xba94\xdd\xf7\x9bk\x9f W?\xbbW\xcf\xe3\xf1\x0e?X\xadVC\xc4&gt;75gWFf@U\x96\x97\xa9\x1d\x8c\x04m\x14#\x1f5\xd6\x92[\xfb\xf3\x01\xedjL&amp;\x93\xa9T\xaa\x1d0\xa4l\x9f\x8aN\xa7\xfb\xbe\x9e\x9e\xfem\xdfO\xb8_\xbdU\xfd\xe5\xfb\xfa\xf1/\xeb\x1f\xecg2\x06\x03unN\xb9\xea\xf3I\xd6\xb6\xb6\xd6|\x9c\x05\r;E\xe3\x12\x10p\x021[i\xcdm\xfc\x9d\x00\x9b\x0eV\x9d\x84\xc6b\xf5\xf3\xd9\x1dR\x89\x84.]\xea\x9b\x9e\xbe\xf6\xd3\'H&gt;\x8f\xeby\xf5\x8f&gt;\xec[\xf7MV\xaa]\xa7\x1di\xa2Kvv\xd6\xc0\x18!\x12\x19\xcd\x84\x06r\xe3Q]-e\x94\xcb\xf2\x18\x8dlI\xf4\xaa\xbf\x8b&gt;\xc2\xa7\xf57u\x8c\x81r\xa92w\xa7\xa7\xc7_\xe0\xcf\xfa\xf6\xbf\xbc/y\x80\x951\x98\x96\xec\x1cmG\x87Fc\x94z\xa2\x9e\xac\x91.%\xba\x04\x8a\x06J-8q\x16\xab\xb7\xd6\x02DN2\xe0\xb9\xf2\xe4G\x86\x0b\x8c.~\xde(\xa5wI\x82C\xd3\xf7I/&gt;A|\xfd\x99W?~h0X\xc1\x1c\xda\xcd:\xbb]\xb7*Sy\xde\xbf\x8b\xc5b\xc6\x0e\xce+ax\xb0\x16\x1c\xd5\x9d\x84~)G.\xa7.\x0f\xdd\\Y\xcd\x8f\x89\xe5\x8c\xae.\x89\x14\xd4\xf5\xdda\xdf4\xe9\xcd\'\xb8x\xfb\xd78\x8f\xf4\x91e\xb5+\x95\x03\xb33\xca\x81\xdbwx\x8f\xa6Vc\x9b\x9bb9Q\xa0Xd\xde\xe8\x1c\x1c\xe5\xef\xb8\xc4\xc4\xc8\xed\xfb\xf7\xee\xdd9\xa4j\x8c#-\xed\xfc\xfe.0\xdf\xaa\x07}}\xbc\x7f&lt;\xc3?\xbf\xfe{\x9cD:4\x192\x86\x88Rc\x9e\x9d\x9a\xbay\xd8w\xff\xf1\xe3\xef\xb3\xf2\x80J\xd7\xcby\x15\nS:\xe1ts\xf3\x16\xdd\x98\x8c&gt;\xfd\xea\xce\xed\x87\xff4\xac\xcb\xd9|.\x8d\xd6\xdf\xd5"QYIw\x9f\x06$\xbf\xe0\\\xaf\xaa\xaa\xbf\xff\x8eD\xba\x07X\x19\xe5\xee\xe6\xc1\xdc\xe7\x7f\x9a\xd8\x1f\xfa\xea\xceC\xd3\xb1\xe7\xdce&lt;[p\t\xf5\x14J\xb8,t\xb0\x02\x9e\\";\xbb|\xf1\xe0\xd2\xa3]\x10\xd9z\xb8\xac\xc9\xa6\x96&amp;If\xfcvG*\x11\xc5\xf9}\xec\xad7?\xfc\x9eDzPa\xedj5\xe6\x89esr527\xf3\xee*\x1e\x95\x8a\x9a8\x0b\x05[\x08\xb2\x84C\x8e\x9a\'\xad\xf1h4\xbauu\x15\x8d\xe6s\xc3M\xce\x16\x02\x8b\xd0\xdc\xd6$1\xd4\x0f\xf07\\/\xff\x87+\xeb\x0fo\x95S\xb7\xc7I\x1f\x00kW\xa7\xe3\xf4\xce\xcd\xecj\x8c\x81\xbc\'\n\x0c\x9e\xb55\xddy\xe1$\x84\xa9\xc3\xde"m{;\x9a\xdf\x01\x7f\xc7\xe3\xf1V~?\x81\xd0&amp;\xec\x01\xddMB\x12&lt;\x94\xd1\x12?\xfe\x88\xeb,V}\xfb^i\xff\xe6.o\x1f\xb04\x1a\rGwp\x10\x93&amp;\xfaY\xac\xe8\x8eT\xe5\xf1\xc8\xe4\x85\x82\xa8\x88AaEQXs\xb9\xb5\x93\xcf\xf1Y\xf1\xd6V\x16\xa1\xb5\x9a@\xe8\xe1r{\x9a\x9b\xf2\xc1C\xc9Z\n\xf9\x0f\xbe\xacgs%\xfb\xdcP\xbd\t\xb0\xb4\xab\x1d\x1d\xb2\xd8f%Y\x0br\x0c\t\x981\x8f\xb8\x00X6\x07\x1a\xf6\x82\x8c\xf6\xe4\x12\x14jk\x83F\x83\xaa[\x1b\xa0\x86j\xee(\xb7\xb9\x8dN\x0f&gt;\xdd\xd9q\x1f\xa1\xf8\xb2^\x94.\xa8\xd4\x9b&lt;\x93\xc9\x04X&gt;\xdfX6\xeb\x93\xd2[\xda\'Y\xf1\xcb\xcb\xb8\x8f(\x02\xe3\xa5?\xac/\xfb\x1d\xde\xf4\xf6\xde\xf6\xf6\xde\xde\xdev-\xb9\xa6\xa1\x1a\x94\x8b;\xc9m\xa7K\x01\xcb\xed?Bp][U\x7f=/\xadP\xa7\x1e\x99^\x1b2\x9b\xb2\xacL\xe6\xa3\xf3\xdb\'G\x1b\xd4O\xb6\x9f\xc4\x13\'"\x91\xab\xc2\xd2\xeb\xbd^a\xa8\x8c\x00\x12`\x81\x8e\xb0\xd3B\xa9\xa9\xa6q\'A+(\r.\xf5\x8fVX\xf8\xc6\xc4\xe4\xd9\xd2,\xf5\x1b\xc02\x1c\xc4dY\x1f\xbd\xbd\xbd\x99\x0b\xb5B\xdb\xf1\xd6f\xdb\xc9\x89\xab\xc2\xf2\xea\xd3z\xc0\xf2\xa6\x11\xf2v\xa5^ \xf43)\x14hr\x12t\x82\xa0Z\x19\xfew\xdec\xf8\xcf\xf8.\xf9\xc0yd\x82\xfa\xb5\xe9\xb5\xe9c\xb9F\x9a\xda{F\x15\x84\x06\x08\xc2\xdc\x8e"\xa8\x96X\xecJa\x88\x05\xd6\xfb\x85^=\xcc\xb4l\xd7\xee\xd55V\x82#\x19\x1au\x83\xb6\x19\xb0\xb2\xeeA\x8a\x7f\x0f\xdf\xfe\xf4\x96\xaa\xa0\x9c\x9f]\xfe\xf0\x91\xa5\xd52rnL\xaf\xc0P\xf0\xf3\x87@\xb5\xc4D\x17\xdb\x8f\xc1\x9d04\xe9\x16.Z\xc8\xb5G\x15\x19\xb3\x91iA\xc2\\?\x08?t_P\x82\x0c6\xa2\xdd8\xef\xa6\x9e\xa4y~}}\xa9\xc2\x02;\xd6\xb0\xcd\xa1\xd0\xeb\xdd(\x84b\x8aP\xd1\xe6"\x8a\xd99?\n[\xc8\x08\xe6\xf6/\x82\xce\x9e\t\x1ah\x0b\x93\x8c i\x85\xd0)\x10\xb4\x8c\xc8\x82Q\x98\xd9m\xc1\xf9\xf0\xf9\xe2*\xb9p\xb6\xfe\xd0j\x02kkW\xa3\x159\x8b^\x0c\xa4\x1e\x04B\x15\n\xbf\xd3\x9542R\x95\xb6\x99\t\xa3\x98\x1b\xea\x04!\x11\x8c\x8a\x0e\xb0\x1c/\x9dmN\x86,\x18?j\xacS\xff\x82s[s\x99\x94\x9f\x95.\xac\xafM\xfb\xe0\xa4\x06,\xa17\x8c"0\x0c!H\xb8\xb9\xc3\x18`\x07R\x18\xf3\xf4\xf9\x1f-(\x8ab\x08\\wz\x1d\x84\xb4\xd3S\x0b\x9c\x1e\xf5\x17\x85\xedN\xf6Xp\xaf\x1b\x1e\x84pfU\xbdM\x16\x00k\xe9#K\xa71\xe6\xfc\x8a0\x16F\x00\x0cA\x87\x93\xb9D\xce\x98\xab\xb0\x9e3Q\x14AQ=|\n"\xec\xf5\xeb\xa7\x8d\x83i}\xc8\xe1\x10:\xd9\xa0Z\x962\x8c;\xeb\x87d\xf2\xbcT\xfa\x95\xa5\xdcd\xa7\xfc\xfep\x1a\x86+\xaa&amp;y2\xe5N\x18\x93)5\xc8\x88\xa8\xff\x18\x810\xa8\x8cT\\\xdd\xa77n a\x85\xd0&amp;p\x0e\xcb\x82j}(\x8d\xe1\xcdz\xb1\x9b&lt;+\xcd\xceTX\x91\xc8*[\xe0/\xeb\xc3\x88\xc5bA&amp;]g\xf2\x97\xb9\\\xb2W\xe4&gt;\xc6\xb0\\\xc0\x8fB~\xc8[\x86OO\xbb\xbb\xeb\x1a\x990hv\x04\x1fY\x1b~\x05\xe4\xc7\xb7\x81\x00\xfb\xe9Ar\xfe\xe2b\x00\xb0\x96"\x99\x18\xa8V\xe5J\x1e\xa8P\xa1\xabtVH\x96\x1e&gt;\x9cO\xbe\xcc\x19\x17J\xa5B*e!\x14\xcb\x08\xf3:(V\xe7\xa0\x1e\xb0\xda*\xac\x9cp\xc3\x8d;\xeb\x8b\xe0\xc2B\xe9b\xb9\xc2Z2\xac\x0e\x17\x85\xder\x19\xb6X \xa1@tV:\x9b(M\xac_\x94z\xe5I-x2\n\xeeN\xb2\xa0X\xb6X\xea\x1a\xc9\x83\x16}e\x12[\xd8\xb1`C\xa7zc\x03\xef\xd7\x18\x9f]\x9d\xd9g&amp;.\xf6\x7fe\xb9l\x8ePY\x9fV\xa3\xa9\xa2\xc0)\xee\xed\x95\xf7N\xf4\xf6.p\x92\xc6@\xc0\xe8t/\x0e6@\'E\xcc\xc2\xace\x92a\xb0\xb6Z\x04-\xc3\xb2l\xed\x8d\xed\xcbK\xbc?\x16\xacz+\x8f\x1c,L,\xbd\x06\xac\xcc\xa6\xc8V\x0cy\xcb\x18f\xb3\t\x1d6\xa7\xabCg\xee\xd5h\x03\x8c@^\x120\xb2\xdd\xe8"L\xe6\x8b\x1c(L\x1e\x84\xc11\xd9\x06\xb6\xd3\xb1X\xb6\xa6\x96\xac\xde\xc3\xfb\x12\xa2\xeaE\xc6\xb0i\x9e[\x01,k\xe6\x80\xf8\xca\xe6px\xdd\'\xb6f\x81\xf3D\xa4\xd9\xd5\x98\x89\xc6\\bC\x9a\xd8\xc9\x06\x02\xf9Du\x03\x85\x92\x13\t!\n\x9c\x0e+\x1c@\xc5\x18\x8b\xa9\xb0Z\x0b\xb2\x87w\xf2\xa9\xba\xf5&gt;\x06\x02\xcf2\x98D\xabUI\x04M_\xc8\x7fr\xd2\xc3e\x889:\xf3\xaeV|\x92\xdb8\xfe\xdb\x86\x9b\x9f\xcf\'T\xd9\x84\x84\xa5\xae\x11\x89\xb8\xd0\xe2wzEH \x10\xb0\x8d1\x0f\x06\xc3\xd8s\xdcc\xf5g\xefW\x93\xf2\xf9\xf5_Y\x1c\xd1\xabb(W\x10\xf2}:\x8eY#f\xb3Ol\xee\x8dc58y\xdc\x98;\x91\xcfg+\xf7\x0f\xe76(\xad/{C\xc2"\xd8\xe4c\xf14\x8a\x1c\xe3\xff\xe1H\xd5[M\x923_\xda\x07\xac\xa5\xff\xf3r\xfe?i\xdfy\x1c\xafT\xe6\x97a\xea]S\x81sd=\xe52\xc3q\x81@\x10B\x80\x94\x03\x07\x17\xb1\xb5pUPJ\xed\x87\xb0;k\x11\x8a\x80:\xc3\xa5\x11\xa5\xb1\xb6\x15\x90\x1aW\r\xbdC\x99U\xa9Z\xc3\xf0\xbb\xab1\xab\xcbiM\xaf\xea\xe9\x1a\xab\xedu\xedZ;o\x9d=\xdbt\xce\xde\xbd&gt;t\xf7\x17\xac\x1f\x9f\x1f\xf8\x90\xf0\xd3#\xcf\xd7\xeb\xf3\xfa\xbc_\xbc_\x1fL\xfa\xc3_\x9d\xe7\x8c\x7f\xa5\xd1M8\xf4$\xe9\x85\xeb\xd7\xcfn^:\x19\x0c~&lt;==\rw\x9f\x8b\xb2&gt;M\xde0od\\F\x83\x95a\xeey4\xe3{\x82\'N\xda\xfe\x8bA\xb3?p\xf9\x9a&gt;\xe7v]m]]\x8dE\x7f\xf8\xec_\x19k\xd2\x9eNG\x16\x89ts\xe9&amp;\xd4\xd3\xfe\xbe\xe0\xf2t0\x18D\x8bj\xa9L\xc1\xcd\xebV\xae\xe5\xd2&gt;\x85\xf5j\xee\xa1\x0b\xd2\xc0\xb3\xef\'\xff\x81\xcd\x90\xcd\xc0\xab\xb5\xfb\xf4\xc7\xb5@e\xd1\x93\xce\x96\xb6\x92\x9c\x15GH\xa4,\xfd\xf8\xb5\xc3\xce\xa5\xa5\x91\xb1\xb1\xe1\xe0\xbd\xbe~\xd0H\xffE#S^\xd6t\xe4\x10\x05r\x0b\xb0\xa0l\xbd\x8a\x0e_c!\xdc\x81[\x0fF\x07\xee\xd4\xd5\xf8\xe9\xd0\xad\x12\x9d\x05H\x85\xa8\xc2Q\x95s\xff\xfe\xda\xda\xda\xf8\xb5\xc5\xc5\xa5%x/\x82\xc6\x97\x14De^\x9e\xf4\x02\xe5\x8bR\xc0:\xcfG.\xafc8K\x89\x83j\xff\x04\xc5r\x91\xae\xd3\x9cR\r"r\x14{&lt;\xdf\xe5ltn\xf4\xac\xaf\xaf?_X]\x7f\xb0\xbe\xf0\xea2\xfd\xf6\x9aT.W\x8e\x9d\xa5~Q\x9a\xcd\xc9=\x04X\x0b\xd8\x8exf\xac\xde\xa8\xb1\xd0\xeb\xb3\xaeS[/0\x15\x9a!zu\xfe\xcc\xe9\x85\xd5\x95\x85\x07\xf3s\xf3\x03\xb7\xe6o\xcd\xcf-&lt;\xfd\xdap[\xafe1\xe5\xe7\xd3&gt;-\xe5\xe4\n\x04\\\xe4\xf4,\xb6X\xb8\xf9\x1b\xe0\x16=\xeb,y\xf8\x02\x8f\xc9\xcc\xd3,\xfa\xc3\xb5\x0b\x0b\x0b+(\xd6\x1ch~\xfe\xf1\xea\xb3\xc5%eH\xc9\xe4\x96\xa6A\x9f\x9f\xcb\x11\xf0\x91\r\xac\xe7\x9aGk\xc1-z}C\xd1\x97\x87)\x12I^k\xeb\xe2\xe2\xb5g\x1b\xebOV\x81\xed\xfb\x85\xf5\xe7\xcf\xefmnn\x8e\x04y&lt;\x1e\xe5\x10\x85\x9a\x8db1\xf8\xbaU\xcc\xc7t\xbf\x01\xb7\xect\x92\xe0j\x03\x8d\xa2\x1cku^C\x93|\xf3\x1e(zB?\xfb\x98\xc7\xa84*%\xfbC2\x87#\x14\n\xb9\xda\xcb\xb70\xc7\x9a\xab\x83 \xd2\xeb\xa5&lt;\x8d\x10\xb0\x9a\x11\xd2\xf88PA!]\x9e\x9e\xfc\xe7\xe4\xf2\xf4\xbdK}L\x1b\x85B\xa5\xcahW\xd1\x1d\x1f\x81\x90\xab\xdb8\xba\x0bke\xdc\t\xd3\xe9v;)\xbb\xadA\xa2\x18\xd36\x8bH\xe3\x87on\x02\xd8\xf2d\x14\xcb\xf6\xf1I\x1b\x85\nX\xe44\xa2\x00\xcc\x12\x08\xe0:\xc4\xfe\x19\x03\xdcJXE\xb7[\xab\xf8r\x91\\\xc9\xe2#Ng\xc3\xcd\xa5\xb3\xb0\xb8\xbf\x04\x8e}d;q\xc2f\xfb\x88JMK\xa3Ph\x1c\x81P\x80\xeeD\xdd\x19\xc0~\x90\x1fw\xbc\xd6\xaf\xb2\xdb\xedG\x04\x88T\xce\xe7K\x9d\x88\xf3\xa6t\xa9\x7fL\xd3\xda\x1d\x94\xd8l\xd3\xc7l6\n-\xedC*\x8fBd1\x14\x90Y\xc8g\x1b\xc7wa\xaf\x8c\xd5\xb0\xd9n\xb5V5 $\xbeF\xcb\xd7"\xd2\x06\xa9TS64t\xb9l8\x18&lt;y\x8cBI\x03\xf1xD.\x17\xf2\x8a\x8bt\x9e\xde\x11,\xdc\xdc\x8f~\xb3\x15\xb8DY\r|)\x9f\xa5\x85\xd3\x08\x1f\xdd\xabk\n\xf2l6[t\xca\x8c"Q2\xb4\\\x86\x94+\x15}v\xfa\xd9N`\xed\x9a\xad\x05\xbb\xc0\xaf\xac\xf2,\xad\x96\xab\x19c\xf4\xf7\x0b\xc74yeM\xdd!\x9b-\xed\x0cJE\x05,-_\xc0\x95JES7z\x9av\x04k\xb4\xf6G\xc8.\xab\xb5\xde\x95%*\xe0s\x19\xc2\xbe&gt;\xe3Ee\xd3pwwo\x1a\xb4\xb0\x7f\xa4R)\x14\x8a\x84\x85p\xf9Z\xa9h\xa2\xaeN\xb73X\xc7\xef\x84\xc3\x10\xc5b\xbb\xcbT.\xd2r\x85B\x85\x82i\x94\x84B\xbd\xcb6t`\x11\xa0h\x14\xa6\xbc9\xa0\xd5J\x0b\xca\xbb\xea\xa6\x9aw\x06\xeb\xe8\xd7\xe1\x9a\x19\xe02\xdb].\x87\x88+\xe4p\x14\x17\xfb\x82A\xde\xef\xaf.\x9fIC\xb1hd\x1aQ\xdeS\x8eh\x0bD\x135]\x15\xc8\xce`e&lt;\t\x87\xc33\x8d&gt;\xb3WEw\x95#\x0c\xa3\x00\xb2kzy\xf9\xea\xdf\'\xcf@u\xa0\xf2x\x12\x19\x83\xd5Y\x0e\xcb\xb1\x89\xae\xae\t\xa7vg\xb0p\xdf\x84g\xfc\xfe\xc6\xc6F\xb1\xd7L79\x10\x06w\xa4\xbf\xdf\x06X\x93\x93\xcb6\x9e\xa47\xd4\xa6\x94\xb3\x02\x96\t\x87\xc3a\xb1tU4k\x9bFw\x04\xebq\xd8\xeb\x9d\xf1\x8a\xc5\xe2\xfcFs\xbd\xa5\xbc\xb5\x95\x0fM\xe2\xf2\xd5\xe5^x\xb5u75\x95\xe5\xe9\x02\x16\x95\xcbe\xb2X,\xe5\x88\x94?4\xbf\x13\x0f\xb8\xe1V\xfd\xdeF\xafW\xacV\x1b\xf2\xc5^\x95e\xaa\'\xd0:\xdc\xa7\xec\x0e\x06C\xc1\xe1\xa6\xb2gM\xba@\xc0\x02\xdf\xbb\xea-t\x87\x88\xcf\xd7\xea\xb6\xef\xe2v\x06K\x8czehi\xc9\x17\x9b\xe9u\xa6\xae\x80\xa6\x0c=\xc6\xa0\xad\x1e\xea\xd1\xf5t\x9a\xbc\x10_t\xa1!BX\\~\xcf\xcb\x8eY\xcc\xb9pw\xff\x15\xf6\xfa\xd4j\xb1\x1a\x9d\x8c\xcf\x177B\x82M5;\x87t\xa0\x00 MMu\x01\xb6W\xe5W\xa9\xea\xcb\x11\x16C\xc0\x0f\xbcL|\x88\xf5\xd2&amp;\xe3\xf8\xf6\xdf\xc2f\xc0\x82\x18\x1aZ\xaa\x0f\x1a\xf2\x1b\x1b\xed\x96\x8a\n\x9d\xaeg\xcad\x9a\xea\xb4\xf8-3\x90t*\xb3JEw \\\xb9\x90\xc1\xef|I(\\\xc1\xd8.\xdcV\xeao\x01\xab]\xad\xf6x\x0c\xd5-\x07\x0fF\r\xb3\x98L\x13\x13]\x16\x0b]\xa5\x02(\xb8\x14Tf\xb3\xdd\x84\xb0\x84\n\x01`="\xb0\xb1\xb6\xeb\xee\xa3\xcc?\xf8\x7f\xc2\xf2T\x83]\xa7\x0e\xfe\xd9`\x80\xa0\xa9\xe8\xe0\x90\x172\x0e\xf5\xaf\xd1\xeb\xb3\xbaD,\xa5\xd1\xc8\x11H\'&gt; $\x15b\x9a\xf5\xb8\xa3\xdb\xe9\x99\xbf\xaa1\x17\xb7\xb7\x03V\xa4\x1aTRr\xeaTI\x0b\\\x94P\xc8\xd0t3\xa8\xd5&gt;\x9fX\xed\xab\xaf\xd0\x00\x95\x91\xc3(0\xb9\xf1\x89\xec-,\x8b\x04\xee\xf5\xa3\xd4\xcc_\xd6\xc0\x1d\xb1\x1d\x05\x8b\xa0T\xa0+W\xae\x94\x00a\xc4\x90\x0fPp1\xa8\x7f\xa2\x92\x11\xb3/2\x10\xd3\x0b|b\x12\x96Q\xc4\rt\x0c\xee\xcd|?\xac\xb2\x16\x17\x17\xb7\x7f\xf7\x06\xebJ\x94\x0c\xa0"\x11\x83\xc7\xa0\xf6\x18"\x1e\xb5\xd9\x85R\x11\x8b\x8cF\xc0\xaa\x07\xac\xc4\xc29\xec\xa2\x98\xf1\x9a\x90\xbcw\xdf\x9fP\xacJ\xe0B\xed\x8az\x15\xc5\x02\xb0j\x03\xa0E&lt;\xbez\x93S\xc3\x94\x10\x89E2\x19G\x80\xd0_\xe0cc\xd9\xdb+\xd8-\xb5\xb6\x1f%\xa7\xee\xfbd\xc6o\xad\xac|\xc3\xe5\x89\xfc?\x90Q\xb0\x92\xea\x88\xd8G7\x95\x07XLbQQ\x11\x91(\xe3\x08\x0bT\x83\xf8\x84\xf8\xc4\x8e\x8e\xa7X\xa5\xd7S\xf6\xb9\xe4\xf4\xbd\x9f|\xee\xb7W\xa2\x8ary&lt;\xd1S$\xe2\x81\xe0\xf9\xa0\xb6\x06*DH\xb3\x90\tN\xa1vq\xe4\x05\xde\xc1\xf8\x84\xb8\xd8B\xe0\xc2\xa4\xe7\xc7\x1dxHp\'\xa7\xa7f\xb6\xa8\xec99\x959Q.(\x14\xed&gt;\x9f\x15z!\xb8\xd7LM\xe9\x9aAZ\x96\xdc(\xcb\x96\x91\xc9d\xa2\xcc(D&gt;w\'\xc4\xc6\xc7\'\x15\x16vla\xf0\xb8&lt;\x0ew\xb7\xf0\x91{0=u\xdf\x15\x95\xbd2\x07\x04X\x1e\xb5\xba\xdd\x07\xebg\x87\xa3S\xa7\xd3\x945\xb5\xb5\xc9Y\x1a\x96B\xc1\xc9.\xa2\x11\x89d"\xd1(\x0c\xfc:%!...\x91\xcdf\x17&gt;\xbc\xf5\x96\xff\xf6\x00w`v\xeb\x87\xc4s\xeeA\xb0\xeb}\x9f\x15\xb0\xaa\x00\x0c\xec\xf2\xf9\xd0\xe7kt=\xba\xb2\xb6\xb6\xb6PH\xc9\x92\xcb\x85\xd0\x1f\x92\xd1m}t\x0e\x82\xd1\xf9"%.\x8e\x10\x17\x9f\x94\x98\xc4.\xec\xf8\xcf\xdc\xdb\x8b$.\xe3\xf8\xca\xb7lB!\xc1\xedNNNN\xcf\x8c\x14W\xe6T\xe9\xf5U9\x95\xed\xea\xf6b+\xdc\xfcXy(S\xa8W"Q\xca\x15\x0c\x81\x10e:\x86\xae\x9e\x8d\x0c\xbf;.\x81\x10\xf3NBl\x12\x88\x1d\xcb\xfev\xe5\xad\xecX\xe3p\x07\xe6\xb6\xb6!\xab\xceE\xcd\x02\xa5\x96\xa0XU\xfa,=\x841\x1aC\x04\x9d\xc8\x8bJ\xa2\x90k\xb8\\c\x11\x99F\xa1\xd1hd\x19\xa7\xf5\x83\x94\x84\x18\xfc;\xfb\xf1\x84\xd8\xdd\xe0\x17\x81\x90\xc8~\xf8\xef\xd1\x9f\x19K\x1c.c\xf6\xf56\x9b\x90r\xee\xbdt7\xde\xfd\x06+\xf97\xed\xa8[\xe3\xe3$\xe0*\xf6\x15\xdb\x1d\xcd\xf2\xd0\x97Q\x85\x94J\x96\x94\xc1\xc9&amp;B\xfb\x03\x071[8\xe3\xc6\xe3c\xf0\xf8\xfd1q\t\xf1\xbb\xe3\x93\xe2\xdeMIHd\xff\xb05\xfb3~\xe2\xc5e\x8c&gt;}\x98\x94\x18\x8bO9\xb7g\xcf\xe0\xa0\x1b\x8e\xc1\xf4\xe4\xe4\xf7\xf6B\x14\xab\xf4$P\x16\x94\xfbb\xab\xab \x8f)\xe1\xf5\x86x\x12&amp;\x8b\xcb\x92\x0b9\xd9\x7f\xa1\xa0?&amp;\x91\xb39\xba\xdf\xa5\x10b\xf6\xef\x7fw?&gt;\xe6\x17\t\xf1\xb1\xbb\xe3\xe3\xf6\xa4\xe0c\xff\xc7\xc9\xf5\x84\xc6q\xdd\xe1\x1d\xcd\xbcy\xf3ff;3,;\xd2vga`|\x08\x82\xb0\x8b\x84\xe4Ek\xcb)\xebEkV:H\xb06Y\xa9D\xad/\xf5A\x84$\x0e\x8d\xd9\x1eR\x02\x06\xd3\x05m\x9a\x1e\xac\xc3\xb6\xb4*\x98BK.&amp;\x88\x12R\xeaKUHK!\xa7\x1e\xdc\x9bu\x89\x0f9\x08\t\x94\xd4\xf4\xfb\xde(\xa1\xa5\xa4\xad\xfb\xb2\xbb\x16\xb2\xb5\xfb\xcd\xf7\xef\xf7\x1b\x93\xc4-n\x1e\xff\xf9\xff3\xd9\xd4\xd4\xb7\x1f\x1f?p]\xcb\x97\xc2\x0bF\xa30&lt;\xc0\x01WI\x92\xbc\x06\xba\x00k}\xa63\xbcu\xeb\xce\x9d\xb5\xce\xd6~\x13\xa7\xd1\xdd\xba~\xb9~\xf1\xd2\xc2\na\xd5*0\xfcO\x0f\x04~:\x08\xc0\x96T\xf0\x97\x93:FK\xfa\xae;\xbfy\xfc\xf8\xb9M\xa6\xff\xef&amp;O\xe6\xdd\xa2\xe5+\x94a,\x04\x8a4&lt;\x085\xacqR}\x97\xb0\xd6\xd7w\xfb7\xef\xdcF"\x87\xfd\xb9\xfdv\xbb\xb1Q\xef^G\n{+\xafhT\xdb;\x0b\xbfx1\x96"\x06\xac\xd8Ne\x04\x11\x9dT8R\x18\xa8}0F\xf7O=?Q\xa6\xe5 \xda\xbe\xc2;\xc7AX%\xae\x90"\x8e\x92\xd7~\x92\xc3\xda\xed\xdc][\xfb\xd1p\xd8Y\xbe\xdemlt\xeb\xf5\xee\xea\xe5\xed\xe9\xca\xec\xec\x85\x0b\xb3\x88\xe1\xdc\x8f\xc7B\xa6\x81\x87\x03\xdb+\xd3tU\x9a*K\xda\x86\xb2\xa0\xe4s\x01CE=;+\xba\xae\xef8\n\x0f)|\xc1\x0b\x0e\xab\xc0\xa5Q\x05\xf1(\xfc`m\xf8\xd1\xfa`w}\x1d51\x1c\xde\x1d\xde\xeco-uq\xf8\xef\x92U\xa6\x81\xeaB\xad\xb2\xd2\xfd\xd5\x8b#aCC\xcfK\rC\x11\x96\x03\xa3I\x13\xd9\x94\xc0\xc5&amp;{\xf2\xf8\x7f\xf1\x18*\xea\xf1\xd3M:\n\x03\xc3\xe1\x13)\xf2\xf0\xbeqR*U\xb3\x8cA$\xaeo\xdcZ\xeb\xf4\x07\x83\xc1\xfa\xcc\xf0\xe6\xf0n\xa7\xd3\x99\x19,\xd5\xbb\x8dF\xa3\xddhL\xd7p\xcb_\xa9l\xf7@\x96/R\xa02\x80\xca\x96\xca\x9c\x14\x952\x02\x8f:J\xbc7*c~s\xf3\xe9\x7f\xf5\xd8\xd4\x14\x1cEP\x96\x03X\x96\x92\xb6m\x18i+Mc\xa8\x08X\x9a\xb0$\x19\t\xef\xe0\x83;\xc3\x8fv\x07\x7f\xda\xedwn\x12\xd4\xf2\xf2\xd5\x8b\xdd\x8d\r\xa0B\x8f\x82\xaaY\x90u\xe9\xf7\'\xb1\xf04U\xb6!m\xe9D\xd2\xc4\x18JSa\xe3\xad\x1d\t5-\xb3\x88\x99\xf4\xf4?3\xf6\xc2\x87\xcf\xfe\xbe9_\x04\xbb./%\x92`&gt;\xb2!%D\xf4\x00\x8b\xc02&amp;\xd1\x13\xde7\x7f\xb9v\xb3\x0f\x15Y\x13\xfd\xe5\xe5\xe5\xc1\xd6\xc5:`m\xb4\x9b\xb0V\rlm/,\xdd@\x0cc\xfa\xca\x90\x86m\xdb\x8ec[-[\xda\xec0WEJF\x98\xe1(\x7f\x02\xfb\xe4k{l\xea\xa5O\xcf\x1e\xcc\x175W\x16\x9eR\xda\x8e\x90\x90\xd1n\xd1\xb3^\xb5\\\xa6\x8e\xa4+\x88\xe3\xf1\xbb\xb7\x86\x9d\xfe\xee`\xa6\xd3\x01\xaa\xc1\xfd\x97\xe7`\xf7n\xbb\x8d9\xc8\x82\xafTz\xf5WOb_\x18\x9e\x80\x80\x86\x11\xb1 \x94+\xc1\x92a\xb7l\xcb\xc5\xfc\xc6\xc319\x94\x00\xec\xf8k\n\xf6\xa5O\x9e&gt;\xd8\xd4\xa8\xe8)\xcbQ\x8a\x89v\x9cHx).9\xf0\xc2\xb2\xc6\xa5\xf9\xf2\x0c\xef{\xb7\xd6\x863\xfd\xfe2\xd8Z\xde\xda\xda\x02\xaa\x8d\x8d6NE\x9f\xed\xde\xc2\xd6\x8d\xb1P\x02\\\xa5\x10\xd0V\x11\x13d\xb6&amp;\x8e\x12\xb6\x91\xa2ZA\x97\x90\xbclZ\xbfX|\xf0\xf9_\xfe]\xca\xa9\xef&lt;;\xdb\xdc\x9cw-\xb6\x82\xa5\x1c\xc4PF\x00\x07wy\xe7\x07\x9e\'.\x12\x06\x15\x8d\xa3o\xb1\xe9\xfb}B[\xc6\x8a\x05_\xb5Q\xa99*,\x80\xf5\xd7OFB\xb6\xe0+\xb8J\xc2U\xb6\xb4\xa2\t=f\xcb\x16\xdc\xc1\x0b\x16\xa4\xd0aU\x902\x00\xfbW\xc6\xb0Ki\xaa\x8a\xaeo!\x1e0\xbc\x0f\xc6\x15@a\xc8\xa6\x80\x94\xa6\x10\xf2\x1cV\tyD\x9a\xe2+\xa0\xab\xa3\xad\xd5\xff\xeeR}\xb5\xa1A\xb5\xf5&gt;\x83\xfdou\xeb\xda8\x96\x86\x17\xe3\xa3#i\x83\xf8\xc9\x04\x15AXH\x12`A\x14)\x146\x0b\xcb4M\x88T\xd4{\xcf?\x03\x9b\xfa\xf0\xf33\xa0\x9a\xd7e\xc5j a:\x86)\xa3h\xb4&lt;m\xaf\xac\\.\x7f\xe5\xafX\x1c\xbd\xc7\xaa\xef\xf7;3\xfd\xc1\x16n\xa0wP\x0f\xd3\x8dK+\xd3\xd8\x96W6\xe6^?\x19\xc7\x10?\x15R\xd9\x92&gt;\x8a\x00\xcb\xf5\x0c;R\x11\xe8B\x0e\x1d\x85\xaf\xc1\x9a\xe9\xa2\xd0\x8aD6?O`_\xde\x93\xfe\xed\xc9\x83\xdcVt\xbb\xc3\'4\x87\xf26\xb4\xf2Z\xc2\x00\xe7\xec\xae\xa4\x0c\xba\xca\x8b@\x06\x83\xc1\xf5G\xb7\xf5d\xe4A=\xd4\x17VwVWwz\xbd\xde\xca\xf6vc\xe3\xfe\x8dl\x1ccD\xa7\xf0\xb7&gt;\xc0\xa1\xa4\x99\xda\xb4\x93\xa2\xb0x\x05\x8b\x91\x83&lt;\x9a\x1aWQ3\xb6\xf9\xf4\xdc\xea\xc7g9*\xb6\xa7\xe5\x83,ZQ\xd2\x99,g\xbc\xd0Y\x81\x97\xb2"\x00k\x91\xc0J\xf0\x97w\xed\xf6\x1d\xc0\xeak\\\xfcK\xe7z\xf7rwaa\x05\x1a6\xba\xaf\x9e\x1c\x8cP\xa5\x9e-\x040)\xd2\x82\xa7$,\xa5X=\x80i\xa1"ti\xeb\xc6\xcfa\xe1\xe4V\'U0;\xfc\x84\x076IP\xe5\x0b\xc8\xcf\'*\x06\x12z\xba!Z\xad\xec\x1c\x97f\x0c\xb8\xe2\xd3\xf7\xd6 !\x8f.\xae\xb9:v\x9a\x1eV\xc0f\xfb\xe5\xdfe0&lt;Z\xcb\x80}P\xa6\xd2\xe4\x1c\xb3\xd0\x15l\x85\x88\xf6r\xf2\xc8[\x0c#\xbery\xb4\xf5\xf9\xdf~\x1c\x9f\xbb\xca\xc7UQ\xe7`\x00\x00\x06\x0cIDAT\xe4\x83\x05\xe1\x04\x89\xadMH\x03\x1a*V\x0c\x1e^\xdabO\xb7\x92rV\xad\x02\xd9\xa2\xfe\xa7\x1a\xc6\xb18\xfd\xf8\xfb\xcb\x83w\xdez\xeb\x9d\xc1U\xf4i}a\xa7\xc7A\xdd\xdc\xff\xc3I\x16p\xfd\x93\xbaH%\xd8r\xd0\x10\x16\r\xcf\xb5\x8b7\x1d6v\x13\xda8\xe2~H\xef\xa0\xc2\xb4\x96\x85\x17\x1e?\xd1L\x91*\xec\nJ(_a\xbdB\x00Y\x81\xb1\x91\xfb\xdd\xc3\xf41\x08\xd0\x83\xdb\x81\xab\xacQ\x95\x81\x0bcH\xf8\xa7\xa7\xd0\xfd\xe1\xd5\xa5\xa5\xa5\xbf^Z\xe8A\xc2\xd9\x0b\xcd7\xae\x95\xc2\x18\xef\xd7j\xe1\xfad\x14!\x85\x11Q\xc0\xa5P4\xb7\x15M\xc5\xa1\x9b+\x89\xfc\x03\x97k\x82\xb2\xc2\xa7g\xdaT\n\x8e\x82\x82$\x89\xc4\x0b\xa4X\xf8R\xc6@\xd2\xd2\x96\x85EI\x9a\x97U\xc3\x9c/:l\x11\xd6\xcf\x12\xacR)&gt;\xf8\x87s\x17\xb1\xfe-\xf4v\xa6\xb7{\xb5\xc3\xfd\x87\xa5j\x82\x1b\x1e\xa1\xc9\xc7T\x06,`\x89\xcc\x96\xd4\xc5\x83\xae\x86\xb9lRDH\xfc\x16\x10\x9a\xb0\x18\xcco\x164(\x8b\xa0\x84p\xf8\xc21\xaaX\'X\x8f\xf0\x9e650\xd0\x86\xa0\xcd\xc6h\x0bJ\xbc\xc3\xd0\x0ec&amp;\x179\xbc\x0fF\x01~\xca\x87\xdd/]n4P\x0e;\xb5\xe6\xfd\xd3R6\x92\x13d\x87\xdd\xc0\x89\x81\xd1l\x9a\x91k8\xca\xcc7\x13(\xcb\xc9F\xbe\xa0.\xbei\xb20M\xc75\x8b\x05\xdd\n\x0e\xf4\xf3\x85\x0e ~e\x06\x81\x887\x05\x1a\x94\x1e\x1c|\x01_\xb6\xc7\xc1\x13f\xd9\x97\xc8\xbe\x9a\x91A\xf0\x06Zk\xa7\xdd\xc4\xaeU{s\xff\xe3\xf1(\xf3\x94\x9a@/4\r\xc7a\x04\xc6\xcc\x89\xc20\x84\xf3\xc1\x8f\x15\xe9!)\t\x0b\xdf\xd0\xee\x07[\x14\xd2*\x14\xb1-\xa0\xd2\x11=\x1e\xd0$\xc0&lt;\xcc\x08\xc7\xa3\xd7\x99l[\xa0\xa2\x01\xaa\xe5\xb1\xbd\x8c\xa4\x9a\x04I\x92\xe5\xc0\x88M[\x8d\xe0\xee5\x1a\x95\xf6\xf6\xec+\x95J\xed\xfd{\xe1\xd1(\x14\xca\x99\xf03\x1dl}\x965\x01\x00\xdc_\xd0\xf1t8V\x9a\xdc\xf42\xe7\xee|\xb9c\xe3[f\xc1\xd5E\xe5\x0bv\xa7\x10:\x8b8\x11i\x12\x9a\x7f\xa6\xc8\x80\x0f\x0cC\xd0\xf3FZ\x023 \x8c\x16\xabVs\x87\xd1c\xa1\xf7E\r\xb3\x87\x9b\xc3l\xf3\xb3\x83\xf1H\x84\x82\x9f\xc4j\xa7\xab1\x98A\x13\x02\x08T\x91V\x8e\x8b\r\x95\x81\xb9\xf0;\x80\x9c\xa3\x82\x86V\x81mA\xe14\x1e\x8d*&amp;.*\'\x04B\xc4\xdc\x00\x11[\x82\x9a\x82\xb00\x83`\x04\x96\x85\xd9\xde^5o\xd7j2\x0e~~x\x08X\x98\xd2\xcd\xfd?\x1e\x8cc3\xc1TE\'\xe1\xc2@\x0e\xf44\'\x8eS\xb4\xd9P\x1c;P\x8b\x1b\n`\x12\x8c\x9e-\xf8\xd3t&lt;\xee \n\x94\x99\x01\x14(,\x9cX\xc4)\x01\x1a\xb4;m\x8e\xb8\xe0\x17\x9bO*\x89\xf0\xa4\xd5\xc0\xcb\x81\x01\xd5^\x08\xc2\x1e\xed\xed\x11Z\xf6\xd9!o+fk\xed{\xe3\xf1\x91_\x0c\xd0\xe9&amp;\xf7[\xc4\x1fI\xd5\xb6/\xb6\xb8\xddH\xf2c\x9a\xec\x05 w\xce}o\xea\x1d\xda\xe2}M\x01\xc0}\xb2$l\x9f\xf2\x191+\x8b3_2\xdc\x9a,;O#\x1c\x06a\xf1\x8d$\xc4 \n\x92\x10\xdae\xe5R\x90\x94\x00\x0b\x8f\xbd\xf2\x95\xc3\xc3Z\xf3\xb0\xd9~\xfb\xc8=\xf2\xadb\x1c[\x14M\xea\xfbC\t\xc7\x98R\x15%\xdd&amp;9\x03\x1d\x13\x1eS\x9a\xbd\xbc\xb4\x90PS\xafU\xf0\x16\xc2k\x11\x95\xaf( P\x91/\xdc;\xa5\x0c\x9f\x16\x10`\xb8\xe5b\x11\x01\xbe\x08\x9f`d\xdc\x9f\xab\x90\x11\xcbs&amp;\xcd\xa0\xfc\xe8\xd1\xde"\xcb\xe2\xed\xdf\\\xa8\x1d\xfe\xfa\x8b\xa3\x0c7\xa7E7{\xb4\x97\t\xa5S\x880"\x84\xfc\x1b\x08j\xe6Jz\x08{\xbcT\xe7%\xe6\xe4\x19\xcc\xbb\x14Q,0~J\x97\x9e\xc8\x0fn%\x10F\xf6\xbd\xc8i\xb25s\x9c\xf7|\xe5\xfb \x87\xe5r\xa2\x95\x0c\x12\xcc\n#,\xeb`\x96\xaf\xbc_k\xee?&lt;=(\xc5,\xe7\xc5G8\x8b\xd9\x08\xb7\x04Q\xa4\xd8\x92XA\r\x88\x18\xd9l\x01\x88\x89\xe4G\xb6\xd2\xc8,G\x9d\x93\xc6S\x10\x96\xd0\t\xf4\xd1\xecB\xc5\xb4|l\xe8\xcb`\x1a\x95\x1e\x0c\xba \xd8\xc8\xfa\x0b\xc71\x98\xc5@hX\xc1\xa48o\x9a\x86\x17 \x99\xa5\xea\xcf\xde\xfc\xed\x0f\x90A\\Z&lt;J\xa0+\x81\x81\xb3\x91oM\xf4\xe2\xb2i\x82p\xd0\x97\x9b\x1c-\xab\x0b\x8d\x81\xf8G\xcf\xd5\xae\xa30\x0c\x04\x89\x9c\xf8\x11G\xb2\xad\xe8h\xa0@\xba\x92&gt;M&gt;\xe5~)\xc5\xb5)\xfc#\xf7c\xb473\x8b\x00!BB1\xde\x9d\x99\x9d\xa5ohA3\xdf\nS#\xac%&lt;l\xe6\x88R\x9cA\xb4\xe5\xc4\xa5\\\xa5b\xfbv\xf9)\xef&amp;\xbf\x97\xe21+\xd1\xcd\x84\xc9\x8a\r)\x83l\xb7\xdb\xf3\xef\xf9\x0bX\x8f\x03\xd7\xccd\xb0\xb4M\xd8\xb6:q\xc1\xf9\xe9L\x97\xa8\x13{\x16iN\xd1\xa4\x88\xaf\xc6-\x88\xda\xc5\\\x04\xe5\xdf\xdd3rM4\x03\xcb5\x81\xf6\x9c\x94\x0610\xac\x9d\xfc\x19\xf8i\xa5\x0c\xc4\x86!\xcej9\x16\x0c\xb8\xeak9\x8e\xa3\x02\xca\t\xcf\xb8\xf3\xb9y\xdc\xfa\xa5\x8cVwi\x8e\xe6\xe4lHGN\xba\x16\x8dc\x1f=^\x90\xad4\x9eU#^b\x16F\xb1I\xa7b\x91\x07\x12]\xe6\x80\x7f\xc1\x03\x81\xce\xfb\x92qC\xb8\x9c\xb6\x83\xde\xfbP\xd0\xad\xe9ZY\x9es\xc30\xc8\x83\xa2\xb2,9!v\xe1\xccP\xa4s\xce\xd8\x1d\xb5\xca\xf8\xc6\x93\xc2v\xc1\x16\xe6\tj\x11\xb0\xe6\xa01\r\xdf\n\xf2-\xb4\x8f!\x12/\xdfF\x04\x07\x06\xb6@^\x06q\x9f\x9a\x06\xc5\x86\x9c\x99\x0c\xd8\xc6Q\xb8\x9c\xeb\xbe\x1c\xd3r_A)\xd8\xd8ZK\x81\xca\x9bQ\xb9Q\x8a\xa0P\xe7\x02*\xd99-2\xb05\x9cs\xd6CaE\xa9\x1a\xd4x\x89\x18\\4wU+\xd1\xe1\x13U\x08\x1c^\x1a\x01"\xbe\xa9D\xa6\xca\xf0\xcer!_#\x8e\x8e&lt;\xbd\xc3\x82\x84\xab\xe7|\xfd\xdeN\xcb;\x15\xa8\n\xcf\xc0\xbe\xcc\xdc\xa4\xdc\x9b\xcd\x9f\x88L1\x8e\xd1\xe0\xf0\x96\xe3\xc0\xd1\xea&lt;\xce\xffp\xa1eM\xea\x12\n\xe7\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>797117</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
+        <v>794590</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1958</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Anderson Gomes</t>
-        </is>
+          <t>Artur Jorge</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa6zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\xe3 \x0c\xdd\xeb\x14\xff\x08 \x81d\x8e\xe3\xf2\xb0\xeb\xaa^\xf6\xf1\xff\x13\xd8\x89\x13\x8f\x8b6e\x1c\x82\x86\xa7\x87$\x9b\xfe\xfd\xf9K?\xb8"\xe7H2X\'\xbdu:Z\xd0Q\xb3%\x8d\x1c|\xad\x83N&amp;\xbe\'#\x9bFM:+k\x96\xbe\xfd\xff\x92\x9e\xd9d\xa2\xd0s\xf8\x1c0\xcdPR\xe93\xa7\x94\xf4\xcbl\xdbs\xd3\x9d%\x8c =L\xcdd\xf5\xe2\xc9 \xc5\x93\xce\x104\x9e%J\xf1\x81_A\x183c\x1e\x9b\x11&lt;\xc5\n\xcc\x02\x8du&lt;\xba\x03\x16rX\xa1\xbf\xc2\x05P\xd9D\x05\xebb\x01\xea\x05!N\xc0\xb9\xec#hV B\x9c\x0e\x94mol\x1b\x12\x94d\x1f\x10\x0cg\x18\x1cx\xa25\x18\x17\xc4\x9c\xa1\x98\x9dF\x87\x0e\xc8\x08\x92\'Y\x08=\xc2]\x1d\xf4\x96\x08p\x93+\x1f\x8b\xbd\xc2\x8b:\x00\xf9\x85\x0c\x01\xf4\xa0e\r\xa3\xae\xa2Nj\x1eF\xa5\x12\x0c\xa9\x82\xd6\xec\xa6\x1cW\xcaU\x86k,\x11*\x86[\x10\x1a\x07\x17\xc6\xac\xd8B\xae \xa0\xc0#|E\x19x~Q\nw\xc7\x88\x9a\x0c\xdd\x01o\xec9\x0b\xd7$\xd0\xdb\xe7\xf11?M\x0e\xba\xce\x8e\xa7\xc9\x91"\xd5\xac\x801\xe5}\x96\xd4\x9c\x9d@\xf4K\xc6\r/.\'\x15&lt;GH\xa1\n\r\x99\xdd2%\x9cgJ\xda\x18\xaa|Bm/I\x1fE*\x887^g\xd4\x92,\xcb\n\x1d#"n\xe8QN\x06\x8ep\x16\x08,s%n\xaei\x8f\xcd\x87\x18\xfdx29\x03H9\x1c&gt;J\x18\x95.\x89G&lt;3f\x16\xf1\xe3?R{k\xad\x8e\xe8\xc2S6P\x9fJu\x82\x96\x82\x84\xcd@\x9e\xe1\xa6\xc0M\xc4H\xde\\0G\t\xa4\xfe\xb3\x88I\x07W\xa3b\x13\xe9\x17+\x1aD\x87\x1d\xefLz\x80l\xe3\xc6Q\xd1M\xfc\xe8c\x0b\xa6\x0c\xe3~+\xe6R\xd1D\xb8/Xu\xd22\xfbL\xf5\x9e\xe6\xec\x95\x99\x01\xbc\xcb\x89\x963s\xaaw\xf0\xb7\x82\xab\xdcY\xd9\xd2\xb3\xda\xbe\xcb24\xffgy\xfbi\xf2\xa8\xbc\xe9y}\xff\xa7\xe6o\xe1\xf8}\xb6\x166\xad\xef\xcfw57\x95\xa5\x98\xe5\xbc\x98\x17\xd3\xa0\xc3\xc1\x90v\xde{\xd1\x89{\x9d\xbd\xf7z\xebM\xc5z\xc3\xba\xf2\xf2!\xbeJ\xef\r\xd3\x1d\x89O9\xa4;\x12\x9frH\xed;\xe4\x9c\xc4\x03\x0e;\xd4~\xf8n\x88t\x00\xb9\x99\xde6\x0c\x04\xefY\x8e1\x80M\xf17\x9f\xa9\x7f\xfep\xe7=\x0c\xefA\x90\xedM\x0c7\x97\xca\xd6\x8d\x91\xbb\xf7\xda)\xc9\xdfj7\x86\xda\x07\xd5\xa9\xbf\xdd\x17\x1d\xbe\xcf~\x011\xf7@WN\xa3\x8e\x84\x00\x00n\x1cIDATx\xda\xec\xfd\xe7\x93eYv\xdd\t\xfe\x8e\xba\xf2)\xd7\xe1\xa1R\x17\xaaP\n\xa8"\x04\x05H\xb0{\xc6\xda\xba\xcd\xfa\xcb\xd8\xfc\xa136m\xc6\x19\x1b\x12$\xd8\x00Y\x00J\xa0DV\x8aJ\x19\xd2\xf5\xd3W\x1d5\x1f\xce\x8b\xc8\x02\xd8 \x87\xddM\x84g\xa2\x8e\x99W\xa5Ex\xb8?\x7fw\xf9\xde\xfb\xac\xbd\xf6\xda"\xc6\x18\xf9\xcd\xf9\xcd\xf9?\xf9\xe8W\xfd\x02^\xf5\x891\xe2\x9d\'\x84\x80\xf7\x01\x1f&lt;\xd1\x07B\x0c\x04\x1f\x08!\x10\x01!@J\x89V\x1a\xa5\x15Zk\xa4\x94(\xad\x10B\xbc\xea\x1f\xe3\xd6\x9d\x7f\x90\xc0\n!`\xad\xa5k;\xb6\xeb-\x8b\xc5\x82\xc5|\xc1\xf9\xf9\x05\xd7W\xd7XkQJ\xe1\xbc%\x84\x00\x08\x84\x00\x84\xc0\x18\xc3h4b6\x9bqpx\xc0\xc9\xc91\xe3\xe9\x84&lt;\xcf1Z#\x95DJ\x85\x94\xe2\x1f4\xe0\xfeA\x01+\xc6\x88s\x8e\xe5|\xc5\xe3G\x8f\xf8\xe4\xa3\x8fy\xfa\xf4)W\x17\x97,W+n\xe6\x0bn\xe6s\xfa\xbeG\x08A\x08\x9e,\xcb(\x8a\x02!%]\xd7\xe1\x9c\xa7\xae+\xf6\xf7\xf6\x99\xce\xa6\x1c\x1e\xecstt\xcc\xc1\xd1\x01\xa3\xd1\x98\xb2(\x98\xed\xedqt|\xc8d2&amp;/r\xa4\x94\xff\xe0@\xf6\x0f\x06X\xce9\xb6\xdb\x86\xa7\x8f\x9e\xf2\xee\xcf\xdf\xe5\x83\xf7\xdf\xe7\xd9\xd3\xa74M\xc3j\xbdb\xb5\xde\xe0C@g\x9a(\xc0\xda\x01\xa5$\x91\x88\x8f\x01?\x0c\xcc\x17s\xe6\xf39\x11\xa8\xeb\x9a\xb2,)\xf2\x82\xba\xaa\xa8\xeb\x9a\xf1x\xcc\xc1\xc1\x01wO\xefrz\xf7\x94\xc3\xa3\x03\xdez\xfb-\xf6f3\xf2"G\x1b\xfd\x0f\x06`_y`y\xe7i\xda\x96\'\x9f?\xe6\xbd_\xbe\xc7\xfb\xef\x7f\xc0G\x1f\x7f\xc2v\xb3A+\x851\x06m\x0cR\n\x94\xd6TuM\x08\x9e\xae\x05dd\xbdY\xe0W\x01\xef\x02\xeb\xf5\x9aM\xb3\x05\xa0\xeb\x1br\x93!\xa5d:\x99"\x95\xc2Y\xcbt6\xe3\xfe\xbd\xfb\xdc;\xbf\xc7l:\xe3\xb3O&gt;c&lt;\x19\xf3\xe0\xe1C\x1e&lt;\xbc\xcfd:\xa6\xc8\x0b\xa4\xfajG1\xf1U\xbe\x15\xf6]\xcf\xd3\'\xcfx\xff\x97\xef\xf1\xb3\x9f\xfd\x9c\xf7\xde{\x9f\xeb\x9bk\x9csh\xad\xc9\x94\x06\x04\xce;Bp\xe4yNQdX;\xb0Y\xaf\xb9Y\xdcp}sC\x08\x01\xad4\xc3`\t1`v@\xf4\xcec\xed@]\x8f\xa8\xaa\n)5BI\x8a\xac\xe0\xe8\xf8\x84\xe9tF\x8cP\xd7\x15\xa7wN\xb9w\xef.UU\xf1\xe6[o\xf2\xc6\xdbo0\x9bMQJ\xbd\xea\xb7\xe9\xbf\xc9\xf9J\x02+\x84\xc0z\xb5\xe6\xbd_~\xc0\x8f~\xf8#\xde\xfd\xc5/x\xfc\xe4\tM\xd3\xe0\x9dGH\tD\xbaM\x83R\x92&lt;\xcf(\xcb\x82&lt;\xcf\xc8\xb2\x0c\xa35\x82\xc8f\xbb\xe1\xea\xea\x92\xe5r\x89s\x8e\x10&lt;1F\xf2&lt;\'\xcbs6mC\x8c\x91f\xdb\xa2\xb5\xe1\xf0\xe0\x90\x08\xb4mGYV\x14eMYW\xdc\xb9s\x07\xad5D\xd8\xac\xd7\xbc\xf1\xc6\x1b|\xef\xfb\xdf\xe3\x0f\xff\xc9\x1frz\xf7\x04\xad\xbfz)\xf2+\x97\n\x9du\x9c\x9f_\xf0\xf3\x9f\xfe\x9c\x1f\xfc\xc7\xbf\xe0\xfd\xf7\xdfg\xb9Z2\xf4\x03\xceZ\xbc\xf7D"\xceZ6\x9b\rR@Q\x148;\xd0iE\x96\x19\xc6\xe31\xb3\xd9\x84\xd9\xf4\x94\xdch\x82sl6kTf\x00\x101\xa2\x812\xcf\x12E\x91Y\x94PtM\x83\x94\x8a\xba(\x00\xd8n\xd6t]KY\x14\x9c\xde\xbd\xcb0X6m\xc3_\xfd\xf8G|\xfa\xf9\xe7\xac\xd6k\xfe\xf8\x8f\xff9\xf7\x1e\xdc\xa3\xc8s\x84\xfc\xea\x80\xeb+\x03\xac\xe0\x13\x85\xf0\xf8\xd1\x13\xfe\xe3\x7f\xf8\x01?\xff\xf9/x\xfe\xfc\x19\x8b\xd5\x92n\x17\xa9B\xf0@*\xcc\xdb\xaeE\x19\x89@\xe0\x82c\xddn\x101\x90\x9b\x0cDD*p6g6\x9b\xa0\xe4C\x96\x8b\x05\xd6\r\xb4MC\xbbm\x88\xdeQU\x05\xeb\xf5\x06\xa35\xe3z\x9c\xdeP\x9d1\x1eO\xd8l6\x98,#\x02\x9b\xd5\x12wtD$\xa2\x8dayy\xc1z\xb3\xe1\xff\xf1\xff\xfc\x7f\xb1\x98/\xf9\x97\xff\xdd\xbf\xe0\xcd\xb7\xdfd2\x19}eR\xe3W\x02X\xce9\xd6\xab5\x1f~\xf0+~\xf8\x97?\xe4\xe7\xbfx\x97\xcb\xeb+\x9a\xa6I\x9c\x94T\xf8\xe8\xb0\xfd@\x88\x9e\x10#B\n\x82\x88dZ\x83\x00g\x07\x08\x1e$l\xbb-\xc8\x88Q3\xf6\x0f\xf6\xa9\xca\x12\xa5\x04\xab\xe5\x02\xe1}z\xd3\x04X\xef\xc9\xa5$\xc4\x88\x1d:\xa4\xd4\x04\x1f\x18\xf2\x9cz4\xa2\xa8*\x8a\xa2\xa4\x1f\x06.\xce\xcf(\xab\x9a\xba,\x99M\xf7\xb8\xb9\xb9\xe6\x97\x1f\xbc\xcfr\xb5\xe6\xe2\xf2\x92\x7f\xfaO\xff1\xdf\xffG\xdf\xe3\xce\xe9qJ\x9b_\xf2\xf3\xa5\xfe\tb\x8cX\xebx\xfe\xf49\x1f|\xf0!\x7f\xfe\xe7\xff\x81\x8f&gt;\xfe\x98\xa1\x1f\x98\xcf\xe7\xb4M\x83\x96\x8a"\xcb(\xf2\x9c\xcdfE\xd7uhc\xe8\xfa\x96@@Te\x8a\x12! \x01%\x04\xdeZ\x9a\xcd\x86y\xf0\xb8\xa1G\n\xc1\xd0u\x08\xef\x19\x959\xdeh\xda\xb6\xa5k;&amp;uMf2\x06\xe7\xc8\xb2\x8c\x10\x13\xff5\x9d\x8c1E\x81\x90\x82,\x1f\xb1X,\x91R2\x1e\x8f\xa9\xeb\x11n\x18h\x9a\x9e\x9b\xf9\r\xff\xdf\x7f\xf3\'&lt;~\xfc\x84\xf5r\xcd?\xff\xe3\x7f\xc6\x9d\xbb\'\x18c\xbe\xd4u\xd7\x97\x16X!\x04\xfa\xbe\xe7\xd1\xe7O\xf8\xf1\x8f~\xc2\xcf~\xf6s\x1e?}\xc2r\x99\xc0#\x10\xe9\xa6\x86 zO\xd7\xb6h\xad)\xcb\x92\xb6m\xb1}\x8f1\n\x9cG\xc4\xf4Fd\xdaPd\x19\x99\xd6\xc4\x18iW\x1b\xba\xcd\x86q]3\x19\x8d\xc8\xeb\x1a\xa3\x14}\xdf\xb1\xf0\x1e\xe7\x1c\x04O\x99\x19\xa4\x90\xe8,\xa3,K|\x14\xb4}\xcb\xfe\xc91]\xd7qs=g\xb1X0XGYV\xd4U\xcd\xf1\xd11!\n6\xdb-\xc30\xf0\xc1\x87\x1f\xe2\xad\xa3i\x1a\xfe\xf8\xbf\xff\x17&lt;|\xed\x01y\x9e}i\xc1\xf5\xa5\x04\x96\xf7\x9e\xc5|\xc9G\xbf\xfa\x84\x9f\xfc\xf5\xcf\xf8\xe4\xd3Oy~v\xc6|\xbe\xa4\xd96H!\x881`\x8cB+M\xb3\xe9\xe9\x87\x96a\x18\xc8\xf3\x8cQ]\xa2\t\x14F\xa1\xb5B+\x89\x96\x92&lt;3TEN\x9ee()\x91!\x00\x81\xf1hL]U\x88\x10!F\xca\xbc\xa0\xd8\x9b1\x1d\xd5\\\xdf\xcc\xf1\x80\x90\xe0\xdd@f\xc6\xa8\xac\xc0\x03\xbd\x1d\xa8\xc7c\xb6M\x8bXJ\x86\xae\'X\xc7v\xb5\xc66-JJ\xa6\xd3\x19\xd6Z\xb6\x9b\r\x1f\x7f\xfcIJ\xc9D\xfe\xf9\x1f\xff\x11\xf7\x1f\xdcK\xbf\x1cJ\xbe\xea\xb7\xfc\xbf\xfa|\xe9\x80\x15B`\xb5\\\xf3\xd7?\xfe\x19\x7f\xfa\xa7\x7f\xc6\xb3\xf33\xb6m\xcb\xc5\xc5\x15\xb6\xef\xa8\xcb\x02\xa3\x05\xcb\xc5\r\xebe\xba\xf5\xf5mG\xdbl\x89\xc1!|\xc1\xa8\xae\xd8;\x98\x90\t\x81\x91\x82L+2\xad(\x8c"7\x86\xdch\x94\x80\xe0\x1ceQQ\x14\x05ZI\x88\x10\xbd\'j\r\xc5\x08\xef=\xe3\xe8h\x07K\xe7#^k\xa2\x968\xe1\x19M&amp;\x8c\xc6#\xac\xf3)\x1dj\x8dD\xd2o6\x94yA\xa956\xcb\x89J!\x8a\x82Q\x91\xe3{\x8bm[~\xf8\x83\xbf\xa0\xef:\xbe\xff{\xdf\xe3k_\xff\x1a{\xfb{_\xba\xa2\xfeK\x05\xac\x18#\xdb\xf5\x96_\xfe\xfc]\xfe\xfd\x9f\xfe\xfb\x94\xfa\xd6\x8b\xc4O\xf5-U\x96\xb3?\xa9\xb9\xbe&lt;\xe3\xe6\xec\t\x04\x87\xd1\x1a\x05L3IU\x8c\x99M\'LG#\xca&lt;#W\x1a-\x05FI\x8c\x12dJ\x92)\x85\xd1\n-%F\x8a\xc4Ye\x19\x90"\xa5w\x9e\xe0\x03B@\x9e\xe7\x1c\xefM\xd84-\xcf.\xafX\xb6=1zz\xef\xf1\x9b%\x83\x92\x08\xa9\xa8ED\x8cr$\x82q&amp;\xc9t\xc4\xe4\n\xe7\x05AF\xb4V\x88\xbc\x84\xaa@ \xd8\xacW\xfc\xe4\xc7?b\xb5Y\xd1\r=\xdf\xf9\xeew\xd8\xdb\xdbC}\x89"\xd7\x97\nXv\xb0|\xf4\xe1G\xfc\xbb\x7f\xf3\xefx\xfc\xf83\x06\xd7\x93k\x81S\x1e/,\xc2:|\x03\xa5\xb0\xdc\xdd\xab\xc9\x84$7\x8aL)\xaa&lt;c:\x1e\xb17\x990\xaa\xab\x14A\x04\xa9`\x97\xa0\x85@\x0bPR`\xb4\xc2hM]\x18\xb2,CkCD\x10\xbc\'\x84\x98\x14\x0f1\x92\x99\x0c\x94\xa2\xedzF\x85\xe2\xecf\x81\x95\x92M\xdf\xd3\xb9\x81\xd2w\xe0%U&amp;8\x1d\xed\xa1\xa5\xc4\xdb@\x08\x0e=\xd2d:\xc3!\x881\xd2w\x03\x11\xc8\xcb\x1a\x95\xe5X"\xe7\xcf\x9f\xf3\x93\x9f\xfc\x04\x93e|\xfb[\xdfb2\x1d#\xe5\x97\x03\\_\x1a`y\xef9{\xf6\x9c\xbf\xf8\xb3?\xe7\xfc\xd9S\xcaL\xe2\xfa\x1e\xd77\xd0\xad\xe9\x977\x98,\xc7\xc5\x8eQ\xae\xb9w\xf7\x88b\x17uJ\xad\x18\x979\xd3\xbaf\\\xd5\xe4yF\x9ee\x98&lt;\xb1\xe1"\x06d\x8cHI\x8a^Zc\xb4"S`\xb2\x0c\xa5L\x12d\t\x81\x10\nb\x02W\x8c\x11m4QL\x19\x17\x92\xeb\xd5\x86!\xc0\xb2\xd9\xb2\xedz\x9a\xc1\x91\xe59Y\x96#\x81\x18\x021D\xfa\xbe\xa3\xd9n\x19\\\x87\xd0\x1a\xa15\xad\xf68\x1f\xd1\xc2\x82P8\xe7\xb9\xba:\xa7\xf3\x16\xa9\x14Y\x96\xf1\xcdo\xfe6u]})\n\xfa/\x05\xb0b\x88\xac\x16K\xfe\xfa\xaf~\xc4\xe7\x9f~\x82\xb7\x03F{r\xe1\x10X\xack\xb93+9\x9e\xee\xb3?\x1e\x93\x19A\x16=\x06\x8f!R\x1a\xcd\xb4*\x99\x94\x05e\x96@cr\x85\xce\xd3\xed/\x06\x10\xd1\xa3\xa4 \xdf\xb1\xef)\x1d\x92\x14\tR\x12"H!\x91J\x11\x81\xb0c\xf0C\x0c\x98&lt;\xa3\xb8s\xc0\xe9\xd1&gt;AH\xda\xbe\xc7#p1\xd2\xb6\x1dbG3\x88\x18\xb9\xbe\xbab\xbeX\xc0\xe1\x98\xed\xd0\xd3\r\x8e\xde\x07\xfa\xc1\xd3t\x8eM\xefh\xfa-\x992D\xd7\xf3\xec\xc9#V\xeb%\xda\x18\xf6\xf6\xf6x\xfd\xf5\x87/S\xf3m&gt;\xb7\x1eX1F\x06;\xf0\xd9G\x9f\xf0\xc9G\x1f\xe3\xed@\xb7Y\xf1\xf8\xd9\xa7\x8c\xeb\x0c-\x03\xf7\xf7\xf7\x98\x8dF\x8c\xf3\x82\xbdQ\x85\x16\x1e\xed-\x86\x88&amp;Pe\x8aI\x9eSe\x06\xa3%Z\x0b\xa4\x8a\x84\xe8\x881\x10\xf1\x08\x02Z(2\x19\xc8e \xd3\x8a&lt;\xcb\xd0J\'a\xa0\xf3@H\xf4\x05\xe0\tH\r]o\x896\xa2\x85 \xd3\x06\xa1\x15\xb5\xca\xd1:c\xf0\x165\x1d!\xe5\xae\xd1\x1d\x03\xfb\xf7\x0f\xe9\x0eG,\x97KLfh\xfa\x9e\xa6\x1d\xf0B\xb1\xed\x03O\xce\x17&lt;\xbeY\xb1v=\x93"\xa3\x1c\xd5l\xfa\x81\x9f\xff\xfc\xa7\xdc=\xbd\xc3\xfe\xfe\x1e\xfb\xfb{\xb7&gt;%\xdez`\x05\x1f8\x7f~\xceG\x1f\xfc\x8a\xcf&gt;\xf9\x18\xdb6,\xae\xaf\xb0\xdb\r\xf5\xf4\x88\xd7\x1f\xdeg\x7f:a\\\xe40X\x8c\x88dR\xa3\x83DG\x9f\x80e$\x95\x91d\xd2\xa3c@\x87\x88P\t&amp;H\x81@\xa2\x84D*I\xa6S!\xafE@E\x8f\x0c\x82\x18\x02\x04\x8f\x90\n\x05D\x04\x91\x88\x90\x12\xf3\x02\xa4&gt;\xa4\x1e\xa2\xcf\xc0Yt\x0cdJ1\xf4\r!\x06\xf2\xcc\xa0\xb5\xc6y\x8b\xc9\x04\xe3\xe3=\xfafK)$\xfb\xd5\x08]\x8c\xf0\xa2`ov@\xfc\xf8\x11\xef}\xfe\x98\xd5b\xc1k\xbf\xf5\xdb\x98\xa6\xe1\xf9\xf3\xa7\xfc\xf2\x17\xbf\xe0\xc1\xbd\xfb\x94\xdf\xfa&amp;\xd5-O\x89\xb7\x1aX1F6\xeb\r?\xfe\xcb\x1f\xf2\xf8\xf1#\x96\x8b9\x8b\x8bs\xa2\x1d\xf8\xad7^\xe7\xcd\x07\xa7&lt;|p\x8a\x16\x01\xdbt\x14\xa3\x1c\xdf\xb7x\xdb%pDPD\x94\x88(\x19\x91\x02\x04\x11!\x02\xc4T\x88K!\x91R \x85@\nR\xfd\xe4=&gt;Fz\x1f\x91\xca\x13#\xf8\xdd\xe7\x06@\x08\x81P\x8a("*3d:K\xc0B\xa0\xa5F\xc5D\x8b\xb8\xa1C\x0b\x81\'24[\x06\x01Y\xa61R\xe0\xfc@e\x04U\x96\xe3Qx\x11\x91\x99\xe2\xb5\xd3c\xacP4\xce1&lt;\xbb\xe0\xd3\x8f&gt;D\xd55\x93q\xcd\xa7\x9f~\xc2O~\xf4\x13\x8e\x8f\x8f\xb9\xff\xf0\xfe\xadn\xfd\xdc\xdeW\xc6\xae`\x7f\xfe\x9c\xcf?\xff\x94G\x8f&gt;\xa34\x9a\xb5\xb7\xdc?=\xe4w\xdf~\x93\xe3\xbd\x19\x856\xe0-V\x06\xe2\xd0##\x18\xa9\x91x"\x02\x1f\x056\n\x06\x04HE\x94\x82\xa8\x05JI\x94\xd81\xe6R\xa2\xa4D)\xb9\x93\x11\x83\xdf\xfd\xdb\x97\xec\xa7R\x04\xa9\xf1Q\xbe\xd4]\x05\x99\xa8\x07g\x03Z\x1a\xb4\x90\xb8\x00A\x99t\xddt\x12\x1f=Q\x08\x94\x86\x10\x03\x83K)\x11\x02\x99\xb0\x04\xe7\xf0^\x80\xc8\xc0I\xb2L\xb0Wf\xdc=\x98\xf0\xec\xfc\x02\x9b),\x9eg\xcf\x9eR\xe4c&gt;\xff\xe4S~\xf5\xc1\xaf8&lt;:d4\x1e\xbd\xeaG\xf4w\x9e[\x0b\xac\x18#]\xd3\xf2\xab\xf7\xdf\xe7\xec\xec\x19\xd6\xf6\xf4]G\x95\x17\x1c\xed\xef\xb3?\x9d2\xae*\x94\x10\xb8\xe0q1\xe2\xbd\x87\x18 \x04"\x01\x88h)AkP\x9a \x05^I\xa4\xd6Di\x88A \x10\x04!\x91B\x12\xa5$\nI\x14\x00\x82\x80\x00$R(\xa42\x08\xfd\xe2C#\x95B\xab\x88\xb3\x0e\xef&lt;\x0e\x08Q\xa2\x10\x08mv\xd1-u\x00\xa4\x88\x08\x11\x91\x04b\xf0\xc4\x18\x08\xd1#&lt;\x10\xd3\xedR\xc4@\xf4\x16\x11\x1c\x85\x16\xcc\xea\x92\xbbG\xfb\xf8\xeb\x05\xdb\x08\xe3\xb2\xc0y\xcf\xd3\'\x8f\xf9\xe8\x83\x0f\xf9\xc6o\x7f\x83\xf2E\x9f\xf3\x16\x9e[\x0b\xac\x10\x02\xcb\xc5\x82\xc7\x8f\x1fa\x87\x9e\xa1iX\xdf\xdcpg:\xe2\x8d\xfb\xf7\x99\xd452\n\x08\x9e\xe0&lt;\xc1Gb\x04\x81D*\x8d\xf7\xe9\xc6\xa6\x94\x04m\x88\xda\x10\x94H\xaa\x06m\x90BC\x88D\xa1@(P\xe9\xf6\x87L\xc59B \xa5AH\x95\x80\xa43\xa4\xc9\x90\xda \x84B(\x89R\x10\x95C\xb8\x17\x93&lt;\x8a4+\x06Q\x88\xf4\xb9;\x1aC\x12\x89\xd1\x83wx\xef\x88\xde\xa3w\xf5\x1d\xa4tK\x8c\x88\xe0(\xa5d\xbf\xce8=\x18\xd3\xf4\x1d%\x12\x84\xe6f\xd5\xd25\r\x9f\x7f\xf2)\x1f}\xf8+\xf6\x0e\xf6\xa8G\xf5\xab~T\xff\x9b\xe7V\x02+\xc6\xc8\xd0\x0f|\xf6\xe9g&lt;~\xf2\x88\xf5j\x81m\x1bf\x93\x9a\xd7\xef\xdfg\\\x95D\xe7\xf1!\x10cj\x06\xc7\x1d\xaf\x14cLi\x08\x81\x10\x12P\x08\x14Rj\x94Hi\x8e(\x89\x884\xa6\xa5\x14Rk\x94\xd6\x08\x95f\x04#\t\x1f\xe8\x0c\xa1\x0c\xd2\x18\x84\xc9\x13@\xa5\x06!\x89B\x10\xa3\'\n\x85\xca\xe5\xee\xdf\xca]\xe4\x0c\x08)PJ!\xe3.\xf6yOt\x8e \x06D\xb4\x08&lt;J\x8b\x1d\xb0]\x8a\xb2&gt;E\xb4L\x04\xc6\x99b\x9cI&amp;\x85"\x93\x86M\xd3a\x9b-=\x8eg\x8f\x9f\xf2\xd1\xfb\x1f\xf2\xf6o\xbdCY\x95\xb7\xf2\x86x+\x81\x050\xf4=\x97\x17\x17H)\xc8\x8da\xd3w\x1c\xcef\x9c\x1c\xed\x93)I\x08.\xa5\x91\x90\x94\xd5B$\x06\xdb{\x07&gt;\x90)\x89Q\x06\x95b\x18\n\x85\x96\xe9N\x87\x17 %Jk\xa4\xd2hmv\xc0\xda=\xa0\x98\x12)A\x12\x95\x00\xa1\x130\xa5!HED$\xe4\xf9\x08\x02\x84P(4QH\x82\x14D\x05R\xa5H\'bL\xfdEa\x89a\x97f\xa5\x00&lt;\x1e\xf0"\x10\xb5B\xc5@\xc4\xe2C@\nA\xa5%w\xf6\xa6l\xfb\x9e\x8f\x9f_\xb1]\xce1\x12LQb\x87\x81\x0f~\xf9\x01o\xbc\xf36\x07\x87\x07\x94U\xf9\xaa\x1f\xd7\x7frn%\xb0b\x8c\x0c\x83%\xcfs\xee\x9e\xde%\xc7\xb3&gt;{F\x99\x19\x8a&lt;#\x06\x8f\xf3\x03\x84t\x13S\nT\xae\x89\xc2\x10m\xa2\x06\xb4\xd1\x18)\x91"\xa2\x84\xda}\xc8\xf4\xa0CLS9J\xa7\xa8\xa25J\x1b\x84\x94\xf8\x18wuP\xdc\x15\xd9\x02)\x05(\x05\xda\x80\x94\x88(\x88!"\xc2\xae\x92\x0b\x02\x9f\xae\x8b\x08\xa5P\x99\xc1d\x19\x89\xa5p\xe9\xf3E\x04\x19\x89*"\xa2\x00\x11\xb0&gt;0\xc4T\x8f)\x052\n\x82\xb3H\x01F)r-(\x8dbTd\x9c\xec\xef\x93\xb7\x91\xf9j`\xddu\xdc\xdc\xdcpyv\xc1v\xbb\xa5(\x8b[G=\xdc:`\xbd\x18yo\xb6[\x02\x89\x1c\xed\xda\x8e\xc9x\xcc\xe1\xe1&gt;E\x99\xd3\xacW\xc8h\xd1\x924F\xa5\xcc\x0e\x18\x11\xa9\xc4\x8eE\x97H\xc1K\xf6\\\xca$C\x16\x08\xa4\x04\xb5\x1b"\x95rw\x13|Q_%eL\x02\x8eH\xe9T(\x85\xd4\n\x94D w\xd7\x82\x17\xff\x93\xa2\x9f\x90\x8a\xa8T\xba(\x18\x03f\x07\xf2\x08BK$/ZB"\xa5R\xe7\x19\xf08\xe5Q\x04\xd0\xa4W\x17@\x89H&amp;#Z)\xe4\xae\xe8/s\x03:\xc7\x87\x1e\x1bZ\xba\xae\xe7\xd9\xb3g\x9c\x9f]0\x99Nn\x1d\x1b\x7f\xeb\x80\x050\x0c\x03g\xcf\xcf\xd8\xae6t\xdb-\xcdz\x85\x12\x82\xe8\x1d\xc19\xb2\\\x13]\xba]!\x00\x95\x1e\x98\x8c\x12\xa2F\x08\x95\xf8)\x11QR \xb5~Y\x94K)\xd2\x03\xd3*\xd5IB\x10\xc5\x17@\x891\x12B\xc4\x07P\xfaEj\xfc\x02l\x91\x80\xf71\xd5C6\xf5\xf1^\xf88\xa4\x9b\xa7\xdcM\\\xfb\xc4\x8d\xedj/%\x04B\xc4t#\x0c\x1e\x94@\xca\x0c\x19#\xe0R\xca\x8d\x02\xe1#D\x8f\x10\x91&lt;+(\xf3\x92&lt;+0\xce\x13M\xce\x81\x1eA\xd6\xb0\xe9,\xcf\x9f&gt;\xe7\xf9\x93\xa7\xbc\xf1\xe6\xeb\xbf\x01\xd6\x7f\xf1D\xe8\xfb\x9e\xf3\xe7\xe7\x0cmG\xbf\xde\xe2\xb7=GU\xc5,/\t]C\x99\'&gt;\x8a\xa8PJ\xa1d*\xc6\x83\xca@\x17(\x9dT\xa0ZJ$\x11\xe7,.82-\xa92\x83P\n\x1f\x1c.z\x82P\xf8(Q!&amp;\xcd\x15\x8a\xc1\x0eX\xeb\xa8L\x81\xf3!E\x1e\rZ\xa6b[+\t*\xe2\x82%\xd5\xcd\x9e\xe0\x05RH\x8cT\xc8\xa0v7\xced6"\t\tT\xc2\x13\x84#*\x07\x12DH\\Z\x08"\xa9\x1c\xb4$\xa2\xf0\xde\x13\x88\xe8\xcc0\xaa-UaY\xb6\x1b\x941\x94U\x8d\x17\x12\x1bV\xf4C\xc3v\xbbI4\xcb-;\xb7\x0eX\x91\x88\xed-1\x04\x96\xcb\x05]\xdb\xb2?\xdb\xa3_-\x89!1KJ\n\x9cM\n\x83\x17\xc0\x92z\x17\xa9t\x86\xd1iF\xd0hE\xf4\x8e\xa1k\xb1\xed\x16\xeb\x1c[\xdf#E\xd2S\xe9,\xb1\xe4\x12\x08/\xd2\xda.\xfdE\xc0:\x87P:\xdd\xecDJ\xa5\xc4\xf4\x1a\x89ag\x18\x12\t1E0\x19v\x94\x87\x0f\x89\xaeP\x91\x18v\x0e6"Q\t\xd1;D\x88\xe9\xfb+\x05;&gt;M\xc5T\xf3!%\xd2\xfbtyP\x9a\xaa\x1a\xa8\xaa\x15\xf5\xe0i\x9dJ\xf7\x0e\x01B\xa4\x8b\xca\xfc\xe6\x86\xae\xeb\x18\x8dG\xb7\xaa\xce\xba}\xc0\x8a\x91\xbe\xef\x19\x06\xcbb\xb1`&lt;\x1as\xfd\xe4sN\xa6\x13b\x88\x94E\x89R\x01/\xd3\xe0Cz\x93%Ji\x844H\xa9A\x08z;0\xd8\x88\x12\t\x08B\xc9\x97\xed\x1b-\xf5.%%\xeb"\x81\'J\x81\x97\xa4\xfaK)\xa4T\x0c\xd6\xa2\x10\x18@\xeed3\x84\x90\xd2b\x92\x93\x12\x82\x04\x02A\x04BL \x93\xc1\x10\x91d\x99J\xdfg7iMp\x08\xe7\x101\xa4\xd4\xfek,A\xd8\x91\xa4\x9080\x04hi(\xab\x92z4\xa2\xec=\xddf\xa0\xccsf*\xa7\xf3\x9e!D\xce\x9e\x9fqsy\xcd\xde\xde\x1e\xda\xdc\x9e\xc7y\xab\x08\x90\x17n0\xeb\xf5\x86m\xb3\xa5\xaeGl\xb7i\x98AI\xc5\xc1\xe1!\xd69B\x88\x18mP:\x01@\x88T\x94\xc3\xaeG\xe7\x1c\xce\xa6z,\xf8\xc4\xc4\xbf\xb8\xf6\x07\x97\xda(\x84\x88H&lt;91\x8a]m\x15\x00\x892\x19Y\x9e\x7fQ\xc8\xbf\xd0_\xed\xb8\xb2\x10\xd2\xd7\x94B\xa0HE7/\xfe&gt;\x84D/\x04\x07D$ b\x92\xd9x\xebp\xcea\x9de\x18\x86\x14\x81w\x11R\xee\n{)e\x8a\xc2;\xb9N\x91\xe7\xe9\xe7\x17\x92\x18\x03y\x9e\xb17\x1b3\x9e\x8c\x10J\xb0^\xad\xb98\xbfH\x83\x1d\xb7\xe8\xdc\x1e\x88\xef\x8e\x1d,7\xd7\xd7\xe4Y\x12\xe3\t\x04&amp;\xcb8\xd8\xdb\xc3Y\x87\xd2\x81\x10\xd3-K\xb0+\xc0w\xe0\x10;\xd6[\x90nR*F\xd4N\x99\x10\xbc\'X\x8b\x8f\x01\xa1d2\x02\xd1\xc9\xbb\xe1\x05X|\x88(@\xef\xd8u\xe7I\xfd\xc5\x08\xde\x07\x90\x89\x86\x10\xe9\xdb \x85\xdc\xfdw\xbaM\x06^|\xff\x177\xbc\xc4sI\x91ZC\xf1%\xb1\n&gt;\x04\x84\x0f\x08)wE}z\r2\xbc\xf8\xb3\x044\xa3\reQ\xec\x86&gt;\x92\xf1H\x8c\xa9\xbf)b\x12\r.\xe6s\x9c\xbb]u\xd6\xad\x03V\x08\x81\xae\xedq\xd63\x19\x8f9W\x12\x9cCJ\x95B}\xb0h\xa5\x81@\x8c\x01!\x141\x8a4:\xef=\x89w\x92\xe8\x17uP\x04\x89\x07g\x11\xd1#c@\x03r\x17\x1dc\x8c;\xe6Z\x10b\x04!\xd2\xdf\x0bE^\x96\x89\x9f\x8a\x10\x82G\xfa_\xef\xcb\xa5\xaf\x1fw\xc4,\x02$\x01Ij\xe1\xa4 \x16_\x1a\xb0I)w\xf1+\xa9"|\x8c\xf8\xe0\x91^"$\x88\x10\xc0\'\xe0J\x01"\xbep\xa3I\xaa\x8a\xb2,\x19{I\xe7&lt;m\xbbE+\xc9hT#L\x81\xf3\x0eg\xed\xab~t\x7f\xe3\xdc:`\xbd\xe0\x8f\x16\x8b\x05\xe3\xd2\x90gI\xbd\xe0\x9d#\xcf\xc7D\x9b\x80 U\x8a$\x90\xa6g\xbc\x0b8o!F\x94\x92\xe8&lt;CJ\xf0\xce\x12\xbc\x05\xef\x88v@\x06\x87\x88i\xc0"\x90\xbd\x04\x15\xbbH\xe2\\@\x88\x804\x9a\xbc(\x18\xac%\xbc\x88\x86\xbb\x13B@\xb0\x8b.b\x17\x9f"D\x95"\x95\x14\xa9X{\xe9\xea\'$Q\xbe`\xd1\x14Q\x04bL\x11L\xe8DE\xa4/,PB\xa0dJ\xf1\xc1;\x86a\xa0\xef;\x8c\xd6\x94\x85 \xdaH\xd7\xf6\x88\xe0\xd1J\xd1\xd94\xf6\xdf4\r\x93\xd9\xe4\xd6\xb4wn\x15\xb0b\x8c8\xef\xe8\xfa\x8e~\x18\x98_\x9dQ(M9\x1a#\x95\xa2\xef{\xeaL\xe3\x9c%\xd3y*\xd8w\xa9,F\x8b\xf0\x02\x08\xa8\xdd\xc8|\xef-\xc1\xa6H\xa5E\xd2eI\xa31\xb9A\x19C\x90iX"M\x1d\xa74%P(\x9d&gt;\x8c1\xf8\x10_\xdeF\xc5n^1\xdd\x08\xddNK\xfa\xe2\x08$\x7f\x93p\x95/z\x8f\x11\xa2xq\xf3|\x91\xafE\xeau\xfatq\xc0;R\xeeM_\xf3\x85\xfcy\xb0\x03m\xdb0\x0c\x03\xce\x062S\x909\xcf|\xb3\xa1\xdf\xd1\x14\x9b\xcd\x96\xc5|\xc9\xd1\xc9\xd1o\x80\xf5w\x1d\xef=\x8b\x9b\x1b\xc0%]\x94sl\xda\x86\xa3\xd3\x13\xca2\':KD\xa1\xa4A*E\x08!\xe9\xcfw\x933"\n\x82\x8f(\t\x99T\xa0S\xabD\xc4\x80"b\x94"3\x05:+\x10&amp;C\x9b\xec\x0b!\x9f4\x98,OF!&gt;\x82u\xe9{8\x87\xf3\x16\x1d\r\xc1{\x8c1l\xd6-F\xf8\x9d\xebm\x92\xd5H\xa9w\x97\x89\xd4\xf4\x8e1&amp;\x9aBD\xd2=i\xa7\x80\x90\x02\x11B\xea\x12\x08\x01&gt;\xd5\x80\xc4@\x90\x02I\xc4\x07\xc70\xf4\xa9\xe0\x1f,\xb6k\x01\x85\x92\x89n\x91\x122\xa5\x89&gt;\xb2\xddl\x18\xfa&gt;]T\xcc\xab~\x82\xe9\xdc:`%\x96;ptp\xc0Y\xdf\xd0\xb7\x1b*ch\xda\x86\xfdQ\x95d"1\xa4\xa6\xb1HQ\xee\x053.\xc4\x0b%\xa8\xc0\xc7\xe4|\xac\x85H\rdb\xaa\x7f\xb4\x06e\x90\xca\xa0u\xf62\xa5\n\tR\xe9\xc4%\x91"_ \x01\xdb\x98\x0c\xef^\xd4pi\x905\xcf2\x9c\xdd"ej`\xa3\x92\nT\x10\xc9\x8c!\xcb\x0b\xacw\xbb/\x95$4I\xd4\x1cv\x1a,\x9f\x868^\xb4\x8d\x10;\x9aA\xec\xa8\x8c\xb8k?\xa5\x94\xaa\xa4D\xec&amp;|\xec\xe0\xd2dv^q\xb3\xdc\xd0\xb6\r\xcbU\xf2\xf0\xca\xc9_\xf5\x13\x04n#\xb0H`Y-W\x10"\xd3\xc9\x94\x83\xba\xc4o7\x80\xc0GR\xdf\xed\x8bON\xff/\x92\xb6\xe9E\xa1,DH\x05\xbf\x94dJ\xa2$\x88\xe0w\xc2&gt;E\x94r\xa7f\x10\xc9\xe9X(\xc4\x0bM\x96H\\W\xaa\x9dST\xf1\xd1\xe1\xbdOT\xc0\xaeU\xd3\xf5&gt;\xd1\x0e1\xa2\x84D\x1b\x85\xd4\x86\x00\x0c\xde\xe1\xd9]\x15C$ \x12\xd9*bj\xe9x\x9fn\xaf\xbb\xdaK\xaa\x9d\xe0o\xf7\xcb\x12\x83\xdf\x99\xbd\x05\xb4\xd6\x18\xa3\xe9z\xc7\xd0\xf7\xf4\xfd@0\x19"x\x86!Y2\xbd0\x87\xbb-\xe7\xd6\x01\xeb\x85\xa6\xea\xe2\xfc\x8c\x83\xc9\x98\xba0l\xb7\x1b\xe40\xe0\x82gp\x82q]!\x88\x04\xef\x88qW&lt;\x8b$\xe2\x13\xbb\xfaEJ\x85V\x82\xcch2cR;\xc6\xfb\xdd\xbf\x89\x84$\x13M\x14\xc3\x0b\x16\\\xa8Dp\n\xb1\xe3\x92\x0cR&amp;\x83\xb6\xb8\xd3K!\xd2\xdca\xd7\xb5h\x9d\xa5\xef/\x13 \x95\xd2h\x93\xa1\xb2]$\x0cI?\x1fEDH\x8d\x92\x1a%"\xc2;b\x00\xefS\xba\x97"\xd5qAz\x881\x8d\x95\x85\xa4\xcdR@n\x0cBvx\x97\x94\x12\x00}\xd7\xd1n;\xd6\x9b\x06]\x16\xf4}\xf7\x1b`\xfd\xe7\xce\x0bMU\xf0\x1e\xe7,C\x1fX\\]s8\x1e\xa1u\x86\xc94&gt;D\xc4N\xda\xc2N\xb0G\x84(\x12\x11\n\xe9\xaa\xefB@\x92\xe6\x03\x83\x10\xc8\xdd\x8f\x9bXw^\xaaL#\x02TD\xbc\\\x16 ^\xb2\xf9m\xd3\x12C\x92=\x0f\x89U\xa0u\x1ee\x14\xca\xa7\x08\x85R\xb8 h\x9b\x16\xeb\x05\xd5XSfEj\xf5\x90\xb4\xee\x82\xf4\x1aCL7B!M\x1a\xec E\xd2\x1d^\xbeh\x17\xc5\x88\xd6\x9aBH2k\x111\x10\x9c#\x92\x04\x8bZB\x1c\xecK\xcad\xe8\x07\xfa\xbe\xdfE\xbdW\xdf\xda\xb9}\xc0\n\x01;X\xf2"c\xbd^\x91M\xc6\x94U\x99F\xa7\x9c\xa3\x18\x8fq\x83\xddM\xd8\xec\xf8v!R\n\x0b\x00\x91$wJ\x92\x15\xef#\xd6\x86\x97\x94A\x0c\xbb\xec\xe9\x02R\xb9\x04\xa4(\xf0q\xd8\xd5X\nD\x1aP\r1rs3\xa7.K\xac\xb5\xf4\xbe\xc7\x19C\xd34\xbc\xfe\xdaC\x86\xd6\xe1\\ x\x92\xaaA\x1a\xa2\xf5\xac7[\x9an@H\xb3\xf3-\r()\xd0\x12\x14\xa0\x94\xc6d\x19\x0c\x81\x18\xdcK\x82\xf7\x85&lt;\xf9\xd7/\x9bI\x13\x96@\xa6\x94\xc4u\x03]o\x91EA^\xe4\xa8MG\xdb\xb6\\]_\xb3\x9c/9&gt;9A\xebW\xaf\x83\xbfu\xc0\x82\x94\x16\xca\xb2\xa0qIQ)\x84`\xbb\xdd\xd2\x94%bo\x9fQ=\xa2k78gS\xba\t!\x11\xa41\xec\x8aw\tB\xe2\xa2\xc7zG\x1f"\xd2\xaa\x97\xd1A\x10\xc94\x80J:*&lt;\x11\x8b\xce2\xb2\xac@\x93l\'\xa5\xd6XgY\xae\x06 Q\x18m\xd72\xf4=\xab\xcd\x9a \x15\xd69\x06\x1f\x08\xd2 \x8d \xfa\xc8\xd0t\x0c\xce\xe3\x88\x88\x98\x98\xf7\\\xa7\xd4\xacUj\xd3\xd4e\x81d\x17]v \x8e\xe1E\xd1\x1ewch\x0eo-\xc4\x17\xec}Rj\xd8\xa1O6\xe2*\x7f\xf9\xde\xcc\xafoX\xad\xd6\xe9v\xcco\x80\xf5\x9f\x9c\xb8\xeb\x89l\xb6[\xf2\xcc0\x0c\x03r\xb0\x8c\xca\x92\xa3\xc3C\x86\xde\xe2z\x0b\xd1\xef\xd2\xa6\x7fiZ\x0ba7\xc6\xa5\x18\xbc\xa5\xeb\x07|x\x91.w#^B\xa2dR|J&lt;\xca\x98\xdd\x0e\x9d\x88\t\xe1%M\x10\x02dy\xc9h4\xe1W\x1f~\xc0\xc1\xfe&gt;\xc1;\xfa\xbec4\xaa\xf9\xfc\xd1cdQ\x80\xd6\x0c.\xb0\xda\xb6\xac\xb6\r.\n\xaa\xd1\x98\xb2\x1eq5\xbf\xd9YUJ\x8cN\xc3\xaeJD\xaa\xb2`&lt;\x1e\xf1\xe6\xfd\x13\xea"OuU\x08/%6/\xd8Xc\xd2DP\x1f\x13\xd1\xdb\xb6-\xde\x07\xb2\x9d\x94:\x908\xb3\xe0\x1c&gt;\x04\xfc.-\xde\x86s\xfb\x80\x15#\xd6\x07\xaeW[N\xf6g\x10\x05Jj\x8a\xbc$W\x06\xbdk\xf8\xa2$^\x08:g\x19\x82\xc7\xec\x9a\xc6\xf3\xd5\x9a\xa6\xef\xb1\xc1a\xbd\xc7\xfb\xf0\x05\x15\xb1s\x92)\x8b\x9ci]2D\x81\xdf\xb6(@F\xa8`\'Y\x96\xe4YN\xdf@\x99+\xe6\xf3\xeb\x9d\x87\x83b\xb9iX\xf4\x8eM\xd7B9\xc2zO\xdbu,Wk\x06\x1f\xe8\x06\x8b\xdcI\x93\x9b\xaee\xb0\x96L\x1b\xea\xaaF\nA\xbbm\xe8\xba\x16)\x04\xdfz\xfd.\x7f\xf4\x87\xbfG]\xe6\x88\xbc\xc0\xba\xc8\xd06dJP\xe4\x19\xc6Hd\x0c\x8cb\xa4\xce3p\x03\xed\xb6#\x9f\x1e\xa0L\xc1b\xd3"\xb4aT\x14\x1c\xcc\xf6\xe8\x9b\xf67\xc0\xfa\xbbNR8\x84]\x8d#1JShCQ\x14(\xa5(t\xb2\xc7\xee\xed\x00J\xa0\xb4A\xc64`z}\xb3\xe0\x93\xcf&gt;g\xb9]#\x8cA\x99\xe4\xbb\xd0\xf5=C?`\xb4\xa2\xae+\xaa\xb2dR\x97\x1cL\x92\x9dQ\x9de\x08gqnH\x8ez1R\xd7\x15E\x91\xe3C\xaa\x8f../\xc9\xca\x8aM\xd73\xac6\xd8\x18\xf06\xb2\xde\xa4M\x15\xd69\xb6]\xc7\xc5\xd5\x15\x9d\x1dp\xde\xe1w}\xc8\xa2(\x19\xd5c\x94P\x0c\xb6G\xc4d\x01\xfe\xee\xfb\x1f`\x94\xe0\xdb\xdf\xfc\x06uY\xe2} /G\xf8\xa1\xc5E\xd0BB\x0cd\x99a6\x990\xaeG\\.\x1b\x86\xc1a\xb2@\xdb\xf6H\xa5\x19U5\xd19\xbc\x1d~\x03\xac\xbf\xeb\xc8]d\x11!\xd2u\xc9NQU\x05:\xd3/\xad\x84bL\xe3U\xfd0\xe0#\x0c\xce\xf1\xe4\xc93&gt;\xff\xfc\t\xcb\xcd\x96!\x04\xd0\x92\xb2\xae\xc9\xb2\x8cv\xb0\xac\xd6\xc9\xddo\xdbu\xc4\x18\xc8\xa4\xe0\xde\xd1\x1e\'\x87G\x88\xf1\x18\xd75\xb4"\xe2\xaa2\xc9\x88\xa5\xc4\x87\x80s\x9e\xbd\xc3C~\xf5\xf1\'\x94!\xe2#l\xb6\rC\x88\x84\xderu}\x8d\x14\x12\x17\x02\xd7\xf3\x1bn\x16KTf\x88|A\x1b\x0c\xdb\x868X\xc6\xe3)\x85\xd1\xf4}\xcf\xe2\xe6\x9a\xdew\xfc\xd5\x0f\x7f\xc4|~\xcd\x1f\xfe\xfe\x1fp0\xdb\x07\x1f\xe8\x9d\xa3\xc8\xd3b\xa8\xe8\x93\x00p2\x99\xb0\xb7\xb7\x8f\xbe\xb8\xa1\xe9\x1a\xa2)v\xf5X \xd8\x81f\xb5\xc4\xdc\xa2eP\xb7\x0eXB\x88\xe4}\xe0\x92s\xb14\nW$\xcd\xba\x8b\x9e\x10\x93.I\x1aC\x0ci\xf8s\xb9Y\xf3\xe1\xc7\x1f\xf3\xf9\xa3gH\x93\xd1{\x07J\xb1\'\x04E\x08l\xda\x8e\xe5\xa6\x81\x18\xd8v\x1d\xd6\x0eH\xefp]\x8b\xb5\x81f\xdb\xe0\xba\x96B\t\x86\xe9\x84qU\x92\xe5\x057\xcb%eYqpx\xc8\'\x9f}\x8e\xb5\x96\x80\xa4\xed:\xb6MGg\x1d\xdb\xcd\x06\xa9\x14\xd6;\x9a\xe5\x02\xe9\x1d\xb9\xd0\xf8\x18\x19\xd5#\xc6\xe3\t{\xb3}\x0e\x0e\x0f\xd9\x9b%1\xdev\xbba~s\xc3\xf2\xe2\x19\x92\xc0\xf9\xc5%?\xfb\xc5/\xf8\xddo\xff.\xa3\xa2H*\x08)\x01\x89\x102\xe9\xcfLF]\xd7dY\xce\xa6\x19\x08\xc11\xaa\nl\x04\xdb5)B\x874\xbb\xe8\x9dJ\xdd\x80Wxn\x1d\xb0\x88\x11\x19&lt;\x99\x94\xa8\xf4;O\x88\x01\xb9\xd3\xaa\x0b%Q\xda\xe0E\xf2Dxvq\xc9/\xdf\xff\x90\xe7\x17\x97\xc9|\xc3ZZgQ\xda\xb0X\xad\x89\xcb5\x9b\xcd\x86\xd5f\x8b R\x16\x05\xc6hT\x0c\\\xdc,\xe8\x06\xc7U]"\x9c\xa5\xda\xd9l\x9f\x1c\xec\':@\x89\x1d\xe9\xa9\xd9\xdb\xdf\xe7f\xbeb\xb1^\xb1\xddn\xd9l\x1a\xb6\xebmR,\xe8D|\xce\x8a\n\x9dgdU\x89\xd2\x8a\xa3\xc3c\x8e\x8eN8&gt;&gt;\xe1`\xff\x80\xe9lFU\x15I\xcc\xb8Yr\xf9\xfc)g\xe7\xcf\xd8n7\\^\xdf\xf0\x83\xbf\xfcK\xbe\xf9\xb5\xdf\xe2\xce\xf1\x1e\x01A\x88$o.\xe7\x88!\xadZ\x19\xd55\xcdN_\x9fk\x85\xf4\x1e;t\xc4V\xd1\\\x9c\xb3|\xfc\x84\xfa\xf8\x88jo\xf6J\x1b\xd2\xb7\x0eX\x02(\x8c\xa2\xcet\xb2\xcb\x8e\x1e\x17\\RTf\xa9]"\x95&amp;\x84\xc8\xc5\xf5\x9c\x9f\xfe\xfc\x97|\xfc\xe9g\x94e\xcd\xbd\x07\x0fSKE)\xa2H\x8b\x05\xac\xf7Lf3\xf6\xfb$/\xb1\xc3\x90\xf4\xe6"\xe2\x9dc\xd5t8\xef1\x04Bf\xa8\xdb\x8ev\x18^\xd6G\x83\x1d@\x08\xee\xdc\xb9C\xd3\xf6t\x97\x17\x04\xe7\xd0\n*\x93!"\x0c\xde&amp;\r\x986h\x93\x91\xa9\x8c\xe9t\xc6\xded\xca\xb8,\xc9\xa4$X\x87k[D\x961\xad*\xf6F\x15w\x8f\x0f\xc9\xdf\xd7,\x96s\xce\x9e\x9f\xf3\xe4\xd9S\xbc\xb5\x14\xc5w\xa9\xcb\xc3$\xcf\xd9\xc9n\x90$5\xe9h\xc4\xaa\xf3x!\xe8\xdb\x06k\x07\xb4\x1b\x08\xdb@\\-h\x9e&lt;!8\x8f)\n\xf2\xbaze\xcf\xf1V\x01+\xc6H\xb0\x16\xe9\x03\xca;\xf2\xc20\xd8\x81m\xbbM}7)\xe8{\x87\x0e\xd0\xfb\xc0\xe3g\xe7\xdc\xcc\x97\x1c\x1c\x1crrr\xca\xc1\xc1\x11YQ\xd2{G 1\xea\xce\xa7fr\xd7\xf7\\__sq~\xcev\xb3\xc6\x050:\xf9\xa8\x0b\xad\x11\x04LQP\xd4#\xf2\xb2&amp;/+\xaa\xaa\x02"ZiN\x8e\x0e\xe9\xfb\x81Hd\xb5\xd9\xb0Zo\xb0f\xc09Oo\x07\\\x08,\xd7\x1b\x9a\xf9\x02\x1b\x02e]3\xdd\x9b\x92e\x19yV\xb27\x9drz\xe7\x94\x07\xf7\xefqx\xb8OU\x14D\xe99::$+\x92Rc\xb3^\xf3\xf4\xd9SV\xef\xbc\xc1\xe1lL\x90Pd&amp;Mk\x130&amp;\x19\xc1\xc5\x10\x882 \xbc#\xc7S\x8fkN\xc6\x13Ng\x13\xe2j\xc9U\xdb\x90M\'dU\xf9\xcaj\xae[\x03\xac\x18#\xae\x1fX\x9c_pu\xf6\x9cv\xb3\xa6*M\x1a\xdd\xea\x93\xa48\x88\x9dR\x14\xc9r\xb3e\xb5\xdeR\xd65\xc7\'\'\xccf{\xe4YIQVh\xd7\xd3\r\x03\xfd`Y\xaf\x97,\x96k\xd6\x9b-\xeb\xcd\x9an\xd7\xa2\xb1n`\xd5\r\x8c\xab\n)\xc0\xe1_\xd6VEQ\xee\xb4TI\xeeR\x95%UU\xf3\xfak\x0f\xb9sz\x87\xc7O\x9f\xf1\xf1\xc7\x9f\xb0\x08+\x18&lt;A\t\xfa\xa6\xe1f\xb9d\xf0\x01\xb4f\xb3X\xf0\xe4\xf2\x0c\xa5\x14UQ1\xaaF|\xfe\xf81\x9f}~\xc4\xfd{\xa7\x1c\x1f\x1fQ\x96\x86\xa3\x93\x03\xea\xbaB)\x85\x16\x8aw\x7f\xf6\x0b\x1e?~\xcc\xf1\xde\x94\xc3\xbd\t1\n\x94V\xf8\x1d+\xdf\x0f\x1dM\xb3\xc1\xd4S\xea\xb2 \x17\x86;\xb3=\xbe\xf3\xf6\xd7\x18e%\x1f|\xf8&gt;\x8f\xe6K\xea\xd3\xbb\xcc\xee\xdeye\xb5\xd6\xad\x01\x1612l[6\x17\x17l\xaf.\xd1\xce\xd2o\xd6\xf4\xae\x07%i\x87\x8e\xde\rh"\xc1YV\xab\x05B\xc2\x9d;w\xb8sz\x8a\x14\x92\xa6i\x102\xb2\xdeny\xf2\xec\x19W\xd7\xd7\\]\xdfp}3\xa7m[\x02\x82\xa2(\xc8\xb3,\x11\xafB\x12\xbd\xa3o%\xa5\x16TZ\xd1vm\x92\n\x0b\x81\xed\x1d\xd3\xe9\x84\xba*\xd1Fq8\xdaG\x99\x0c\x81d1_\xb2m\x076\xdd\x92\xe5v\xcb\xa6ip2Y!\r.\xb0n\x1a\x16\xeb\x15EYr\xaf\x1as\xb9\x98\xf3\xec\xfc\x8c\x8b\xab\x0b&gt;\xfe\xf4\x13\x8e\x0e\xf7\xb9\x7f\xef\x88\xb7\xbb\xd79:9b:\x9e\xb2?\xdeC\x05x\xf6\xe83\x9e&gt;{J\x95gTe\x81\x11\x02\xa3\xd2\x0c\xa5\xf7\x01;\x0c\xe8b\xa0\xac*\x8e\'c\xbe\xfe\xda\xeb\xdc?&gt;\xe4\xf1\xc7\x9f\xf2\xfeO\x7f\xcc`*\xecv\x9b\x9a\xe6\xaf\xe8\t\xdf\x1a`\x05\x1fhW+\x86\xd5\x8a\xa3z\xc4\xdcv\xb4MC\x10\x01\xa93\xda\xbe\x05\x01J+B7\xb0Z\xad\xc8\x8c\xe6\xf0\xe8\x88\xe9d\xcc`-\x8b\xc5\r\xcf\x9f?\xe3\xc9\xd3\'|\xfe\xe81\x9b\xed\x16\x93\xe7h$\xde\x0e\xf4\xbdeTV\x14yA\x0c\x81&lt;\xcf\xe9\xb6\x1b\x86\xa6\'d\x9a\xb5\x96\xdc\\W,&amp;#\xc6U\xce8\xdb#7i\xf853\x86\xa2,\x88B1\xae\xeb\xa4\x17\xbb\x9a\x03K\xfa\xc1\xb2\xda4\xb4\x83E(\x8dG`]\xc0FA\xbfi\xd8k\x87\x9dg\x17t\x83\xe5\xe2\xfc\x9c\xe7\xcf\x9f\xf2\xf4q\xc9jq\xc5\xef\xff\xc1\xefQ\xe7%y\x91\xf3\xe6\xeb\xaf3\xadJ\x08=\xfd\x90\xb8\xb7\xa4\xc7JW\x99$\x0f\x8a\xb8\xaeAOJ\xee\x9e\x1cr\xba7E\xda\x9e~\xb3D\xf4=G\x87\'dZ\xc1+d\x1en\x05\xb0bL\x06f\xf3\xf3KV\x97W\xbcv\xe7.\xb9\x08\xcc\x9b\r\xd1ui\x86n\xe81\x99A\x06\x9f\xb4Nn@\t\x98\x8dGD\xefX\xcdo\xb8\xbe8\xe7\xddw\xdf\xe3\xec\xfc\x0c\xef}\xda@\xb1\xbf\x87\x0f\x11\xd7\xb6\xc4\xc1\x91\t\xc18\xcb\x99T\x15y\x95sq6\xb0\xd8\xac\xd8t\r\xa5\xf4l\'#\xda\xed\x06\xdbuH\x01\xb6\xef\xf1E\x86\xa9J\x94\x94X\xeb\xd0Z0\xdb\x19\xbf]D\xb0\xc3\xc0\xd0\xf7\xc4\x10\x98\xee\x8d1E\tHD\xa6Y.W4\xdb\r\'GG\x1c\xed\xef\x91\x1b\xcd\xb5Q8\xdb\x13\x06\xcb\xe3O?\xe5\xf8`\x1f#\x15wO\x1fR\xe5%\xf7\xef\x9d\xd2l\x97I=\xea\x1d\x19\x1a\xe7\x06\xbc\xb3\xe4\x99\xa6*\x0b\xacs\x94\x85ao6%\xda\x01\xeb{\xea&lt;\xe7h\x7f\x1fS\x96Ij\xf3\n9\xad[\x01,H\xbc\xd5\xf2\xe2\x92\x8b\'Oy\xe7\xce)\xa3\x07\x0f\xb9X\xcf\x19\xce\x9e\xd0t\x9b\x94\xca\xe2\x17M\xdb*\xcf\xc9\x0bC\x95g4\xcd\x96\xab\xb3\xa7|\xf6\xd1\x07h&lt;o=\xbc\x8f\xd6\x8a\xa2()\xca\x92\x10`\x7f&lt;\xa1\x1b\x1cU]S\x14\x15yU\x92\xd59\x9a\x80\xb0\x03\xa1k\x18W\x15\xd3QEU\xe4h\xc0\xf5\x1d\r\x81L\x0b\xea\xaa$\x1aC\xb0\x0e\x19aRW\xdc\xbfs\xc2\xf5\xe5\x05\x17\x12r\xad)\xca\x8a\x83\xfd}\xf2\xb2B\x08\xc9\xa9V8\xeb(s\xc3\x9d\xe3\x13\xee\x1e\x1f\xa7\xf6M\xfc\x16RDF:\xf2\xfe{?\xe7W\xef\xbd\x87w\x16\xe1\xe1\xfe\xdd\xfb\x8c\xaa\x82"\xcb\xf0J\x92\xe5I\xe4\xe7v*\xd7\xcch\xb4\x96X\xeb\xd1J\x92iAp\x03"\x08&amp;e\xc1\xac\xae\xe8bD\xbf\xe2\xa5\x9a\xb7\x06X\x00\xd19\x96\x17\x97\xb8z\xc4\x83\x87w\xc9\x0b\xc3\xa3\xcbg;\xdb"\x8bs\x96Z\x17d&amp;\xa3\xca3T\xa6P\xd1\xd3\xac\x96\xdc\x9c\x9f\xe1\xdb-\xdf\xf9\xed\xdf\xe6\xf5\xd7_G\x08I\xdb\x0f\xf4\xc3\x80\x90\x9a\xae\x1f\xb0&gt;0\x1aO)\xca*q^\xc1\x91\x11\xa9\x95`\xd8\xac8\x9c\x8c89&lt;\xa0\xd4\x9a\xa1m\xe8\x9b\x8c\xe8\x06Z-i\x8b\x12-\x93\xdb\x96\x16\x90)\xc1\xe9\xc1&gt;\xfd\x9bo"\x81\xf3\xebk\xfa\x0023H\x01w\x0e\x0f(\xaa\x82\xb2(\x19U\x15\xf7\xee\xdc\xe1h\x7f\x9f\xdcHf\xe3\x11\xe3Q\x05\xfd\x86Ye\xf8\xe4\xb3\xcf\xd8\xdf\xdbch\x1b\xae\xce\xce\xe8G\x15\x93I\xc5\xa8*\xd1Z\xeed\xcc\x89e\xf7~\xa0m7i\xaf\xb5\x8cD7\xa0H\xbd\xd4\xe8&lt;U\x96\xd19\x87\x88\xfc\x8d\xc9\xa2\xbf\xefsk\x80\xa5\xb4f&lt;\x9b\x12\x9deuuE\xf1\xf0\x94iYRf\x19*\xd9\x19\x13v\xf6DZHFEN;\xb4l\xe6\xd7\\\x9f?\xa3\xce4\xdf\xfe\xfa\xd7\xb8\x7f\xf7\x0eG\xb31yQ\xe0Bd\xdb\xb4l\xb6-JD\xa2\x90\xe4\xb9\xc6(@j\x18\x1cu\xa6\x19\xe5\x19]o(\x8d\xa6\xca\x0c\x99\x94\x08\xe7q}\x8f\x91\x02\xdf[\xfa\xa6\xa5\xaajLQb\xa4B\x84@e\x04\x0f\xef\x1c\xd15kl\xdf\xd1\xd9$\x06\xf4\xce\x92\x97%\x99\x12\x94Z2+r\x8e&amp;c\xee\x1e\xcc0R\x10\xbdes}\x89t-o&gt;x\xc0;o\xbdAVTX\x1bX\xad\xd6\xbb\x11|\x80@\xdfv87$s\xdd\xdd\xa8\xbe\x0f\x03eU2\x99\xd48\xdb3\xb8\x01\xa9s\x8c\x94\x8c\xaa\x92u3\xec\xca\xabW\x87\xac[\x01,!\x04\xcah\xc6{3rch7k\\\xd3\x91\x95\x8a\xa3\xc3\x03\x1em\xe78g\x93v\xdcy\xfc0\x80w\xb8\xbe\xa5\xef[t\x0c\xbcv\xef\x14\xa3\x15\xdb\xd5\rW\xbe\'/K\xac\xf5\xb8\x10\xb1.\xe0\x07\x872\x19\xbek\xd9,\xe6\xd8\x10\xb0\xce\xd15[\x0c\x91\xac*\x99\x14Eb\xfcw\xa3bx\x8f\xdc\xa9XDH\x1f\x92\x04l\x15#\x19\x81\xe3\xd9\x88\xcd\xc1\x8c\xcb\xe7\xcf\xe8\xd6+\xbc\x0b\x08\xa5(\x8b\x8c\\\x92,\x1f\x8d\xa4\x9b_q\xd6\xac(\xf3\x0c\x89\xc7\xf6=wN\xf6)\x8d\xc6\xf9\xc0\xd04\xec\x1f\x1c3\x1bO\x912b\x8c\xc4\xbb\x816x\xdc\xe0_\xd8p\xa1\xb5DkIU\x17\x14e\xce\xcd\xcd5\xebUGu\n\x85\xce\x99\x8c\xc6,c\xf3\xaa\x1f\xe9\xed\x00\x16$c\x8f\xac,(\x8b\x02\xd1\xb4\xb8\xaeC\xe5\x15\xa7\xc7\xc7\xc8G\x1f\xb1\xd9n\x80\xddZ7\x1f\x88\xce#\t\xcc&amp;c\xaa,)5\xbb\xa6A\x06\x8f\xef[\x9a\xbeg\xb5\xda\xd0[\x87P\x8a\xa6\xb5D$e=\x02\xa90\x99AII^V\x1c\xd4#J\xad(\xb5 \x131\xa9:\x85N\xa6\xb9\xce#\x82Hn\x80\x01\xa2u\x04\xe7\xd1Bb\x14\xcc&amp;5\xa3\xaf\x7f\x8dI]\xf1\xd1\xa7\x8fx\xf4\xe4\x197\xcb\x15\xddr\xc9\xd07\xb8\xed\x1a\xda-\xeb\xa4~f\\\x97\x14F3\xaaK\x16\x17\x8e\xae*A\t\xaa\xd1\x04o\x87\xa4\xbb\xf7\x01;\xa4\xe2\xbc\xae\nb\x18\xf0\xa4nAQd\x94UIY\x97\x84\x18x\xfc\xe8s\xc2\xd5\x92}Sp\xe7\xe8\x0e\xd5xL\x19v\x0e\x84\xbf)\xdeITB\x96\x91\x159y\xf4\x10=m\xb3Ad\x1e\x85\xc3Z^N\xb5h\xad9&lt;\xd8\x075e\x18z\xe2x\x8c\x88\x9e\xe8\x1dE\xf6\x06\xeb\xf5\x8a\xf5j\xcd\xfex\x8cs&gt;E\x04\xe7\xf1&gt;"\xa4"\xcfK\xa6\xd3\x19B\n\x86~ z\x9f\xec\xb0\x87\x1eo\x074\n\xa34\xd1\x05\xa2\x8f\xc8(\x90\xa8$m\xf6\xe9\x02\xa1\xb5"zI\xdf\xf5dy\xc1[\xaf\xbf\xce\xf1\xf1\x1d\xdey{\xc1\xf3\x8b\x0b\xae\xe7\x0b\x1a\xdb3\xf4=y\xa6\xd9\x9fN\x19\x95\x15FI\xdc\xd0\xd2\xf7\x1d\xeb\x9bk\x0e\x8f\x8f8:\xbd\xc3\xfe\xc1A\xbaM\nE\x8c\x0ek#C\xdf!\xa3C\x84d\xd6&amp;\xa3\xa4,r\xc6\xe31\x93\xd9\x14)a\xb3\x98\xc3\xbaa\xb3X\xd1\x14\x13T5ev4B\x95\xe5\xae\x91\xfd\x0f\x1cX/\xd2\xa1.r\n\x91&amp;\x8d\xcf\x9e\x9d\xf1\xc4.\xc8\x85\'\xcb\xf2\x04\x1e\x11Q\xb9&amp;\x0ci\xf2\xb8,J\x94\x80\xbe\xdb\x92\x17\x19e\x961\xca\x0c\xf7\x8f\x8f\x91B\xd0u\xdd\xce\xd9%\xee\\\xfb\x041\xa4\x112\tX\x19\xe9{h;Kk\x87t\xebC#]\xf2\xa0\xd2Q\xa0vc\xfc!\x82T\x02\x85Bz\x8d\xb5\x8af\xd7\x82\x92J\x93\x17%\x0f\xde\x98r\xf2\xe0\x1e\x8b\xd5\x9an\xe8q\xce"\x85`2\x19a\x94N\x0b\xcd\xa3g1\x9f\xd3]]S\xd55U=A\xea\x1c\x95\x17\x89\xa7\x0b\x03BE\xdae\x83\x1b\xda4H1X|\x94\x04\xebw\x1e\xaaI\x91\xba?\xae\x91d\xb8\xb6g\xb3\xd80.\xf6\xd8\x7f\xed\x01\xd9d\x92\xe6\x00^\xd1\xb95\xc0\x02\xd0\xc60\xdd\xdb\'\x9b\xdf\xb0X\xaex\xfa\xec)\xbfZ&lt;%;9Hk\xe0\x94z\xa9\xc5\x12;\xbfP)\x04\xc6h$eZ\\\x99\x19\xa4\xc9\xc8\x8c</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>798839</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1967</v>
-      </c>
+        <v>797117</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Juliano Roberto Antonello</t>
-        </is>
+          <t>Anderson Gomes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x00\x00\x00\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x01\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x05\x06\x07\t\x01\x02\x04\x03\n\xff\xc4\x00=\x10\x00\x01\x03\x03\x02\x04\x04\x03\x05\x05\x07\x05\x00\x00\x00\x00\x01\x02\x03\x04\x00\x05\x11\x06\x07\x08\x12!1\x13AQa\t\x14"\n2q\x81\x91\x15#BR\xc1\x163br\x82\xa1\xb1S\x83\x92\xa2\xb3\xff\xc4\x00\x1b\x01\x00\x02\x02\x03\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x06\x07\x01\x03\x05\x02\xff\xc4\x00/\x11\x00\x02\x02\x01\x03\x02\x05\x02\x05\x05\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x11\x12!1\x06\x13"AQ\x14a#2q\x91\xb1\x1534B\xc1\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xdf\xe5)J\x00R\x94\xa0\x05)J\x00W\x01 \x1c\x81]V\xe2\x19l\xb8\xea\xc2R\x91\x95\x12p\x00\xf55\x8a\xb7\xa7\x8d\x9e\x19\xf6\x1a\xda\xe5\xc3_\xee\xc5\xad\xa56\x9c\xfc\xb4i)qj?\xcb\x90yA\xf6$\x1a\xc3i\x19Qr{#+d\x9e\xc7#\xd2\xb9\xfaS\xd4\x8cV\xb0\xf7K\xed)\xecu\x93T\xbb\xa7v\xbbG\xb1x\x11\xdd\xe5\x90\xf2\xee-\x94\xa0\x7f1%\xd6\xf0=\x80?\x9d{4o\xda\x15\xd1z\xa7\xebV\x8fB\x92\x07\xef\r\xb2\xda\xa9A\x1e\x99R%b\x97\x96U\x10{9\r\xc7O\xcb\x9cy(=\x8d\x98e)8\xa6R\xaa\xd7\xe3?\x1b6T&gt;rv\x83j\x14\x17\x00\xf9Y\x93!\xa9\x01\xcf\xc4&amp;J\x8a\x07\xba\xb1W\xc6\x96\xf8\xc9l\xe5\xd9\xc8\xf0\xaf\xbau0V\xf2\x82S!\xfb\xa2P\xd3\x84\xf6)PJ\xd3\xf9s\xe4y\xe2\xb3\x1c\xaa%\xdaG\x99`\xe5An\xe0\xc9\x99J\xc5{U\xc5\xce\xd1n\xac\xe6l\xd0/(\x896N&gt;Y\x89\x12\x1bR^\xcfA\xca\xb4(\xa4\xe4\xf4\x00\xe0\x9f k*V\xf4\xd4\x96\xe8Y\xc5\xc5\xec\xc5)J\xc9\x81JR\x80\x14\xa5(\x01JR\x80\x14\xa5(\x01Vf\xf8\xef\xce\xd6\xf0\xe7\xb7\xd3\xb7;w\xb5d[=\xa2\x03*q\xe9\x12]Jy\xb03\x84\xe4\x8c\x9f\xd0\x0c\xf5"\xab:\xff\x00]\xe9\x8d\xb3\xd2\x17\ru\xacnm\xc4\xb7[c\xa9\xe9/-@t\x1d\x80\xcfrO@=M~d\xfe&lt;\xff\x00\x17\xbdI\xc7N\xf0\xabi\xf6\xb6\xe2\xdcM\x1d\xa7\x9c[IirT\x04\xa7|\xc1)\xe8\xa4\x8c\x12Ou\x12{\x00\x90\x03\xd4#\xce[\x12\x03\x8f\x8f\x8fN\xe7q\x1f\xb8\xd7=+\xb0\xd3\xa5Z\xf4\xa5\xb8\xad\x0cK\x83so\x92Si=\x1dJ\x14\x9c\xf5=\x018R\xb2p\x120\x04\x12\xde.&amp;\xb7&amp;\xf9%:\xcfp5U\xce\xde\xdc\x85\x16\x13\x19\xbb\x8a\x9d~`\xf2O!R\x86:\xf59\xe9Q\xfbN\xee%\xd2\xc1%P\xae\x8dC\x9d)\xd5!\xfehq\x8eR\xb4\x8e\x80,\xf6\xc7J\xb8\x06\x82\xd5\xfb\xa2\xa5kk\x8cy\xab\x93-e\x00\xbe&gt;\x86\x07a\xc8?\x88\xd72\xeba\x19~#\xe8I0\xe9\xb2U\xf1\xaa=J\x83|G&gt;\xfd\xccJ\x89a\x8e\xecx\xcb\xca\x9eQA,\x0ftr\x90\xe1\xff\x00\x17\x95d{7\x1a7\x1b\x14\x03+muc\x89y\xb6y\xe5F\x99nJ\x92\x94\xe7\x05I(X\x18\xcfs\xcb\xfa\xd67\xb6p\xa9u\x84\xc8]\xce4\x98\xf2\x01&gt;\x14\x96;\x8fb&lt;\xb3\xe9G\xb6\x02\xe3\x16C\xcf\xd8#\xbf\x12km\x80\xe29y\x83\xe9=\x0fO#K\xca\xdc)\xad\x87~\x9bR\xab\xd2^\x17.+\xb7Nm\xc9\xeb\xbd\x93R\xca\x0c s]\xed&gt;/&lt;bH\xeb!\t\xf4&gt;i\xaf\x1c&gt;&amp;\xaf\xd7K\x8b\x0fZ]1B\xd6\xa7\x13\x15(\xccuaC\xa1\x1e\xbe`\xfb\xfbWm3\xc3\xee\xaf[1\xa37oz,\x98\xc4\x84M\xee\xa5\xa4\xf5\xe5#\xcc\x0fJ\xbd\xac\\\x0c\\5\xc4g\xfc;\x92`L\xea\xb3\x8f\xe3W\xae&lt;\xb3\xe9Ze\x99\x87Z\xd9w\x1a\xabO\xd4\xac\xea\xc9q\xc0\x0f\x1d/\xea\x8b\n\xf6\xaf[\xce[s\x9aR]\xd3\xb2\xd4r\xf3\x0f\xb6\xb0\xb55\xfeE\x01\xcb\x8fz\xdf\x8f\r;\x98\xf6\xea\xec\xf5\xa7TO\n\x13\x90\xc8\x8fp\x0e\x1f\xa8\xba\x80\x01Q\xf7P\xc2\xbf\x15\x1a\xfc\xa7l\xd6\xccn\xa6\xcbo\xa5\x96\xcfy}\x01\xc5\xdc\x12a?!Xm\xdf\xa8t\xcf\x99\xe9\xdb\xce\xbfA\x9c\x14\xf1i\x0bDO\xb3m\xb6\xa8T\x18Qn\xfc\x86b\\&lt;\xabm\xf2\xdaS\xe2#\xae\x03y\x03 \x8e\x80\x93\x9e\x94\xee&amp;UM\xf1\xdf\xb9\xc2\xd5\xb02"\xf9\xed\xdb\xb99i@A\x19\x14\xae\xa1\x1f\x14\xa5(\x01JR\x80\x14\xa5(\x01JP\xf5\x06\x804\xe3\xf6\xac~!\xc3g\xf6\xa6\xcf\xc2n\x83\xbe\xb8\xd5\xee\xfc\xfad]C/\x14\x86\xa3\xe3$/\x1dFR@I\x1d\xf9\xd6&lt;\xab\xf3\xff\x00m\xda[\xa6\xbd\xb81*\xc8\xdasq_;iqJ \xa0\xf7!\xc5v\xad\x9d\xfd\xab]\xb1\xb8\xb3\xc7\x1f\xf6\xba\xe2\xe0CrlL&amp;\x13a\xd4\x8f\x18\x05)k\'=\x82R\xb4t\xf3\xcdEN\x0b4\x14[\x95\xc6\xd5&amp;\xe3\x0eD\x85\x08!E\xb7@\xe5O\xb8\xc7\x97\xb5\'\x9d|\xb1\xf1\xdc\xe2u4\x8cU\x97\x9b\x182\xad\xb1\x1c,?o\xb6\xfc\xa6\xa9\x8f\r\x08Z@.\xa5&lt;\xeaH\x1d\x92\x93\xe6&lt;\xcf\xb9\x15\x9d\xac\x1bSk\xb3Fi\x84\xc4am\xb40\xdb\x01\x1c\xa8hyc\xde\xaf\xbbU\x96:\x14\x86\xd8e\xb4\xa5)\xc0K}\x85\\\x11t\x89\x9b\x87\x80\xefP\x1b2n\xcb\x9b\x93.\n1)\xc3\x84b\x91\x8e^\xd2\x91\xd6\xac7\x1c\xbc\x9c\x0f\xa9C\xb7\xb7\xe5^\xfb&gt;\xde[\xae@x\xb6\xc1\xcc\x93\xd7\t\xf2\xac\x80\xfe\x83Q\x08P\x1eup@\xd2LD\x8a\x94$~\xf4\x0e\xd4\x95\x96\xd9\x17\xc4s\xe9\xe1(\xf21\x9b\xda&gt;;8n&lt;~@\x91\xdb\x15\xf2\x8do\xfd\x93$(\x1c\x11\xd6\xb2\xa3\xba%\xf9i\xf1\x9fO^\xdd=*\x9fr\xdb5\xa9\xa31#\xd8\x1a\xd1+g%\xd0b5AE\x16\x06\xa7\xd3\xf05\xd6\x9e\\I\x10\xd9[\xcc,;\x11\xf7\x11\x852\xeaz\xa5a_\x8f\xfc\xd6\x1a\xbd\xf1\x85\xb83w\x19\x9d6o\x93\xa0\\\xad!)q\n\x7f\xaf:N9\x93\xef\xf7T?:\x92(\xb1\xa2\x0b&gt;\nA\xca\x9c\xc5B^\'\xf6\xd3S[\xb8\x83F\xa6\xd3\x05\x92\xea\x9e\t}\xa7\x8e\x02\x91\xd7\'\xf2\xae\xd6\x8bu\x92\x9f\t\x11\xbd\x7f\x16\xb8P\xec\x89\xfa=\xf8A\xf1t\xbe,\xb8L\xb6\\oWTJ\xbei\xec[\xee\xae\xa5|\xdc\xfc\xb9\x08V\x7f\xd2G\xe0\x05J\xb00I\xf5\xadR\xfd\x97\xadj\xdd\xdfm7+K\xf3\xb6\xb5\xc5\xbf4\xf1[}\x88Z\x01\xe9\xed\x95\x1f\xd2\xb6\xb4N\x08\x1e\xb5`T\xdb\xadnS\xf7$\xaci\nR\x95\xb0\xd6)JP\x02\x94\xa5\x00)JP\x07\xe7G\xedd&lt;\xdc\xbe94\xfd\x96\xe6\x85\xa1\x97\xb4\xeb&amp;\x1c\x83\xf7\x12\xbeDs\x7fJ\x8e\x1c\x1dF\x85\x12\x146\x8b\xc8*C!%m\x9e\x86\xa6\xf7\xda\xf3\xda\x19\xaa\xd5:\x0ft\xe2\xc8Iml\x96\x9dg\x97\xaa\xcfD\x81\x9f\xfb_\xefP\x97\x82\x9d;r\x99\xa7\xda\x92-\xcai\x98\xae\x00\xfc\x82:\x11\xe9\xf9v\xae&amp;\xb2\xdf\xd3\xb2Y\xe1\x8a\xf9\xe4\xff\x00\xef\xb1\'l0\xd9\\\xa0\xa6\x07\xd2M_V\xb6\xe1G\x8c\x94=\x80\xac\xf5\xab.,\x98\xd6\xf9+\x9546\xcb\x08\x19\x0e-X\xc8\xaf\xad\xa7w45\xde\xe1\xf2\x10\xb5$E\xb8\x93\xcb\xc9\xccq\xfa\xf6\xa8~-r\x94\x1f\x12\xca\xb6\xe8\xa8\xa5"\xf3\x919\x86_\xf0\xdb\x00\xa7\x00\xd7\xa2$\xb0\xea\xb9\xf1^Xq\xa1\xceP\x92\x99\xedaC\xa0m`\x8f\xd4Uv\x06\x9cL\x86\x83\x8d;\xcc\x9c\xfd\xe1JdUz\x90\xe56R\xe0|\xcd\xd1,5\xc9\x8f\xf6\xae\xf6\x87E\xc1Js\xcb\xb6+\xd2\xbd=\xc8y\t\xcdS\xf5\x15\xff\x00I\xe8\xa8\x1e5\xea\xfc\xccgI\xcf\x84\xb7BN&lt;\x8e+Mx\xf6\xce]B\xeb\xebP\xf4\x9e-GlB\x1d\x12\xf9G*\x89N1P\xfb\x8d\xfd2\xc4[z\xae\x9e!J\xd6\xb2\\[c\x95iH\xf4W\xa7^\xb5.\xed\xba\xd7Mj\xa6J\xed\x17\x96\x9e\x07\xa0RV\x143Q\xc7\x8f=7}\x8d\xa3\xd3xj7\x8d\x11K)[\xa0tJ\xb3\xd1?\x9fj\xe8i\xc9\xc35#\x8f\xab\xcdY\x81?\xd0\xda\x8f\xd9\xad\xda[v\x82\xe0\xc6f\xa8\x8c\xca|[\xcd\xcc\x058\x0ez7\xce1\x9f?\xe1\xfd+cu\x0b\xfe\x02[i\xa96\xd3\xe1\xcb\xa5"\xea\xc8\xaaf\\\xf7\x9d\x94\x94+\xfe\x92\x82yO\xfc\xfe\x954*\xc9\x87\xe4E/c\xdelR\x94\xafg\x91JR\x80\x14\xa5(\x01]V\xb4\xb6\x92\xb5\x90\x00\x19$\xd7j\xb7\xb7a\xf9q\xb6\xbbRH\xb7\xf3\x19\r\xd8&amp;)\x8eN\xfc\xe1\x85\xe3\x1e\xf9\xa1\xf42\x96\xefcK\x7fj\x0f\x89N\x1ew\xb7m,:gAk\x86\xae7\xdd-}[7\x0bpG)q\x05\nW3j\xcf^S\xdf t&gt;\xf5\x17xB\xb4\xa6\xd5\xb1VGCE%\xf8\xbe#\x89ZprN~\xafSU_\x88f\x83\xb4\xdf6\x86\xf5x\xb9\xd9Q\x1e\xf4\xd5\xdaC~"\x9a.-`8J\x94}\xf1\x9e\xbe\xd5\xc7\x0b\x8f6\xad\x98\xb0J\x9a\xf1*1\x009\xf3\x19\xf4\xa8\x96\xa1\x9a\xb2\xa8m{2\xca\xd14\xa7\xa6e\xed\xbe\xfb\xc5\x1cn\x06\x9a\xd4{\x814\xd9\xd5&lt;\xc5\xb4\xa4\x8f\x19\xdel\x05z\x82|\xaa\xcb\xd5\xdb=\xb2\x1av\xd6\xd9\xb9\xee[6\x90\t\x08q\xd9\xa5&gt;"\xbd\xc6{V_\xd7N\xb3\x7f\x80\xbb\x1d\xa9a\xaed\xfe\xf1C\xa0"\xb0\xce\xf5p\xcf\x1f\\\xedB\xf4\xed\x9eDF$G}kv[\xe0\xa9\xd5\x85aX\xfc\x01\x18\x04u\xa4\xf4\xec\x98K\xd0\xde\xc7W6\xab\x92\xe5\x0e\xe7\xa7mu\xae\x9d\xdb\xfb\xd3V\xed5\xbc\x02yyC\xc2\x8a\xb5\x12\xdb\x80\xff\x00)5.v\xebS5t\xb2\xc6-\x12\n\x9c\x1c\xe0\xf9\x1f:\xd7\xb6\x9b\xd2\xe2^\xac\xb5\xdan\xd6\xd8l3\x11\x96\x9a\\\x87&gt;\x95%C\xba\xd3\x8fq\xda\xa5\xe6\xc8k\t\xf6\x88\x8dB~X\x94\x0b\xdfC\xdc\xb8\xe7O\x91\xc5\'\xa9\xca\n^\x99n;\xa5\xd3)Ciw.\xed\xea\xd5\x12\xb4\xcc9\x8bn\xf8\xd4\x048HT\xa7\xd7\x8eC\xe5\xcb\xd7\xa9\xa8\xf5\xa34v\x95\xd5z\xb5\xc9z\xcb{!\\$\xbar\xd4\x19\xce\x85(\x92z`(\x8e\x95tqwf\xd4W\xf8/]\xd8\x90\xd3\xa9e\xcf\r\x98\xee+\xa3kY\xfe\xf0\x8f\xe2&gt;@{\xd6-\xdaN\x1b/\x1a\xd3z!nE\xda\xdd\n4X\xb1\xbc\x19\x10\xa60U\xce\xa1\x8e\xa1_\x88\xe8|\xb2k\xde\x05\x95\xba\x9e\xf2\xe3\xf7\xff\x00\x86\xadF\x8b\x15\x8b\x89 \xec\x1b=\x13K\xdc\x9b\xbai\xd9C\xf7`-A\xb7\x08@\xf5\xe8:u\xaex\xa0\x8d.\xef\xb1W\x16\xd9H\tQmKB\x942\xdf\xd4\x07L\xf9\xf7\xab\x8bJivv\xfe\xea\xec\x88\xd2V\xb8\xcf\xa8\xad-\x15\x92\x84\x13\xdd)\x07\xb0\x07\xca\xa9\xfcD\xad\xb9\x9b7\x7f\x94\x94\x0c|\xb2H\xe9\xdb\n\x06\x94\x86O\x0c\xd5\xee\xbeC\xe9\xad\xb3\x16U\xcb\xfd\x93_\xba7O\xc0\x8c\x1bM\xa7\x84\x8d\x0bf\xb3KK\xcdD\xb1\xa1\xb2\xa0\xb0HW2\x89\x07\xdf\xade\xcc\x1e\x83\xf1\xa8\x8b\xf0z\x99p\x7f\x87\x85\xb5.[\x8e\xa5(\x88\xa4\x97\x16O^G\x10{\xf6\xe8\x84\xfe\x82\xa5\xd8\xeb\x83\x9a\xb1\xe8\xb1[Tf\xbd\xd1O\xe5P\xf1\xb2gS\xf6m\x1c\xd2\x94\xad\xc2\xe2\x94\xa5\x00)JP\x02\xbeo6\x87\x9bSN )*I\x05*\x19\x04z\x1a\xfaR\x804\x8f\xf1\\\xd9x\x9a\x17{\xf5V\xd1\xdam.\xb6\xadD\xc2\x9e\xb2:NZ\n\xe5\n\x08\'\xd7\xc3)\xc9\xf5&amp;\xb0&gt;\xd2hg\xb4\xc6\xda\xda\xb4\xcc\x82\x82\xf4x\xc08Q\xd4\x05y\x8a\xd9\'\xc6\x07k\xad\xb3w\n\xc1\xae.1\x16\xa4\x88\xe8\\w\x13\xd8&lt;\x90\xb4\x11\xfa\x04\x7f\xe4*\r[\xe1\xb4\xd3\xcam\x96\x12\x94\xa5\xc5\x0c\x01\xefP\x9dV\x97]\xb3\x8a\xf7{\xfe\xe5\xa3\xa0dy\xf8\x95\xcd\xbe\xa9m\xfb\x16\xea\xb4\x1a\x9d\x1e;\x0er&lt;:\xe5]\xab\xc3wu\xc8,\xaa,\xd2\xd2\xd6F9\x92\x91\x8a\xc8\x89\xb7\xfc\xcb\x9e\nR\x06}*\x95\xac6\xfe+v\xc7nSO"\x00\x1c\xbe\\\xc7\xda\xb8\xd4\xd4\xd4\tJ\x94\'\x1fQ\x8a\x1a\xdb\x8d6\xfc\xbf\xda.@C\x92_WD\xf2\x0c$\x0e\xc4zU\xdd\xa6mq\x1b\xb9E\xb7\xc1k\x904z\xfe5Q\x80\xc4\xb9\x16"\xd5\x8a\xd6\xd3\x1c\xdfy\xf9 \x02\x84\x0e\xe7\x98\xd5_E\xe8\xa5\xc8\x02u\xbe\xe4\xc8R\xde\x19&gt; ^G\xf3\x02=k\xdc\xa8\xe6\x98\xdd\x1eMm3\x9dK\xa1`\xea\xd6\x8b\x93\xd29PF\t\x1d\xc8\xaf\x9e\x8b\x80\xde\x98!+BJR\xb2\x94\xf3\x0f*\xc8qt\xec\x9b=\xe1-\xc4~4\xd4\xac\x81")Ry\x94\x0f\x98\x07\xd2\xbcw\r \x89\x1a\x91v\xb8\xd0S\x1di\xc2\xd0\xdb\x87\xe9)=\x884\x8cq\xda\x8b\xdc\xd9j\xa2\xc9\xeex\xe6X\x97\xaa\x1dK\xf1\x80\t\t\x1d\x00\xe9\x9a\xf1\xeb=\xbd:\xb3D\xdc\xb4c\x8e\x06\x84\xc6R\x95\xbe\xae\xc9\x01@\x91\xf9\x80j\xfa\x87hr\x04p\xc1l\xa1I\xef\xd3\x15\xdd\xabxy\xd3\ri\x07\xc7\x04`\xfa\xe2\xbcW\x0e6\x9c\xfc\x9b+\x85}\r\x82|-\xac\xf68&lt;7"\xe3b\x1f\xb8zpm\xbf\xf2\xa1\x94(\x7f\xf45%z\xe3\xf2\xac-\xc0e\x95\xbb\x1f\x0e\xd6\xd6\x19\x8e\x96\xd0\xa9\x0b\xe5J\x13\x81\xf4\xa1\xb6\xfa\x01\xee\xd9\x1f\x95f\x91\xd4g\x1d\xea\xd4\xc4\\q\xa0\xbe\xcb\xf8)\x0c\xf9s\xcc\xb2_w\xfc\x9c\xd2\x94\xa6EE)J\x00R\x94\xa0\x05)J\x00\xb27\xbf`\xf6\xe7\x88\r0\x8d-\xb8\xb6\xd7\x1ei\x97\n\xe3\xbe\xc3\x81.4N3\x82A\x188\x19\x04\x1e\xc0\xf7\x00\xd6\xa7\xf8\xaf\xda8\xdb\x15\xbf\xd7\x8d\xbf\xb2B\xf0\xed\xed&lt;\xa1\x13\x98eE\x03\xa8\'\xc8\x12\x92\x93\xd3\xa7Z\xdc\xb1\xfaF{\xe2\xb5\xdb\xf1\x82\xdb\xc6l\xdb\x89g\xdc8\x80\xa7\xf6\xa4NW\xce\x07W\x10\x0bg\xff\x00P\x83\\\xddN\x95n,\xba\x1d\xcd\x032x\xd9\xaa;\xf4\x97B\x1e\xa9\xb5D\xf0\xe4\x85\x9f\xab\x07\xa1\xa6\xa1\xd4q\xe76-.%*\xe4H%*\x19\xae\xec&gt;\xdb\x8d!\xd09\x90\x80\x02s\xd7#5jj\xc8z\x8e\xc9\xf3sl\xd1[\x90\xe9\x94T\x10\xf3\xbc\xb9I\xec\x90O\x95A\xaa\x8b\xf3\\KR\x16\xb5\x05\xb1\xc5\xe10/\xac\xae\xde\xe4d)(NV\xda\xb2\x03\x89\xf3\x1d:\x1a\xfam\xf6\x89\xd1\xba&lt;J\x97\xa6\xa1\xc8a\xb9E\x0e8\xc8\x94\xa5%\n\xff\x00\nI\xfaG\xe1V\xa5\x97t5\x83\x97\x17-\xd7\x8d\xbcL5\xa1g\x95b@XX&gt;\x98\xab\xb5\xadO\xa7\x90\xda\x0c\xbb\\\xc6\xc1\x1fRZI\x04\xab\xcct\xf2\xae\xbf\x97\xc2\xad\xd27\xd7\xbd\xd2\xe3&gt;\x85\xc5\x03Gi8\xf7\xa3\xab\xad\x91_3\xde\xfe\xf5\xd7&amp;\xadX\xf5\t\x04\xe0\x0fj\xbb\xa1\xb8\xcb\xa1 4\xb0\xeb]P]\x1fQ&gt;\x99\xf4\xabgL\xeb;Ao\xe5\xed\x9a2^\x12\x9c\xf3\xcaa\\\xbf\x91\xce+\xbb\x1a\xde|\xdd@\xd4(\xdavkmr(\xaeW \xf0\xc2\xc1\xe8\x91\xe7\\\xec\x88\xc1\xc5\xfc\x9b\x1c\xa7_Ob\xfaD\xf5JB\\t\x92\xa00\xac\x9c\xe0\xfaVA\xe1\x8bi\xe2\xee\xfe\xee[\xf4\xe4\xd9\x05\x0c:\xeaR\xa0\x9e\xa4\x0c\x9ee\x00|\xd2\x9eb&lt;\xb2\x06k\x1cZ \xb4\xf3\x92\x16\xbed6\xe3\x89#$\xf4P\x195-~\x19{c*f\xb4\x91\xb8o\xa3\rC\x8a\xa5!i\x1f\xc6\xb0\xb6\x90\x0f\xe2\x92\xe9\xff\x00G\xbdx\xd11|\xfc\xd8\xef\xd9=\xc8\xd7\x88s~\x9fO\x93\x8fw\xd0\x99\xfaKLYt^\x9c\x87\xa5\xf4\xec!\x1e\x14&amp;Cl4\x9e\xb8\x1d\xc9\'\xcc\x92I\'\xcc\x92j\xa7JU\x90U=\xc5)J\x00R\x94\xa0\x05)J\x00R\x94\xa0\x0e\x13\xfd*\x19|d\xec%\xfd\xa8\xd3\x9a\x91\x03\xea\x89qu\xa2\x0fc\xcf\xe1\x91\xff\x00\x06\xa6j\x7f\xa5E?\x8b\xd3(W\x0c\xcc:R\tn\xec\x9c\x13\xe4yI\xfe\x94\xb6g\xf8\xd3\xfd\x074\xfe\x99\xd5\xfe\xab\xf95\x87l\xb8\xb9\x19\x1f!%8[\x87\t\x1e\x9dk\xd7%\xd6\xa7\xc9\xf1\\i*\xc0\x00\xf3\x0f1\xd2\xa9\xca\x86\x89\xcc\xb4\xe2\x9e\xe5\x90\xd8\xcbK\x07\x18\xfck\xc6\xde\xa1\x94\xd4\x95F\x96\xc7\')\xc1P\x18\xcf\xbd@!\xca\xd9)D\xb4\xe7c\xc7\xee\\2,l\xdc\x00y\x98m\xad\xe4u\x04\xb6\t\xaf\xa4wn\x88-\xb6\xbb\x1b+\xe5_u\x00+\xcbg\xbc\xa0(*&lt;\x85\x10{\x9ecW-\xb5\xe8\x12T\x97^P\xe6\xcf\x9fZc\xf1\xe0\x87q\xf3\xe3%\xc8\xac\xdb\xe3\xcb\xbb\xc5CR\xa1%\xb0\x91\xd8\x00zW\xdeDHm\x10\xd3M\xa5A8\xee&lt;\xeb\x88\xf7\x16\xa3\xb0\x10\xc3\x9d=A\xaf$\xa9\x8c\x87\x0b\x8d\xb8y\xff\x00\x90\x1e\x94\xac\xab\xb3~R&lt;]\x9a\xe4\xf6E\x7fMA7\xeb\x94[\x02\xdf\r\xb6\xf3\xf9Z\xbc\xf0\x0eN?J\xdag\x0f\x1bSe\xda-\xaf\xb7\xe9\xcbK\x08\x0e\xbc\xc2$Mu)\xc7;\x8aH\xe9\xf8$a#\xf0\xc9\xeaMj\xbfk\x1cjn\xbe\xb5\t\xcf\xa5\x9eg\xd4\x9f\xa8\xff\x00\x84\x91\x81\xeb\x9a\xdc\x15\xa7\xe4\xcd\xb62\xad\xef%\xd8\xfe\x02&lt;\x07\x12\xae`\xa4`r\x90|\xf20sR\x0f\x0cW\x1f"r\xf7\xdc\x82\xf8\xb6v\xac\x88B]\xb6\xdc\xf5R\x94\xa9Q\x10\x14\xa5(\x01JR\x80\x14\xa5(\x03\x80\xa0N\x01\xaek\xaf2\x1bI$\xf6\xefQ\xe7\x8aO\x89\xd7\t\\)Cu\x9de\xb8\x91\xeeWt\x82\x1b\xb2Y]K\xef)X\xc8\nP&lt;\xa8\xf4\xeaI\x1e\x94$\xd9\x94\x9b3\xf5\xd6\xe9\x12\xcdk\x93w\x9c\xb0\x96"\xb0\xb7\x9eV;!)*\'\xf4\x06\xb4\r\xc5\'\xc5kyx\xb3\xe3\x86\xef\xb2\x0f\xde\x04\x1d\x17ma\xdf\x90\x80\x929e\xb8\x15\xd0\x85g\xe9@\xc0\xce\x06U\xca\t\xc9\xab\xe7\x8f\x1f\xb4y\xb9z\xf7N\xdcv\xafc\xb4\x94}-\x16\xeb\x11\xf6L\xe5&gt;$Mu\xb2\x83\x94\x83\xf7Q\xd3\xb9\xecz\x8e\xa0\xd6\xa8\xac\xfa\x96E\xabp`n\xc5\xbeb\xdb\xbd\xda$e\xa9n\x82\xa4HJ\x8eKn\x0fC\x9f\xbc;yV\x8c\xbal\x9e4\x92\xf8\x1e\xd3\xe5\x1a2\xa19\xfc\x9b9\xb7\xb4\xb5\xc7\x01\xc5d\xf6Y\x1d\x94G\x98\xf6\xae\xb7{\'\xed&amp;J\\&lt;\x98\x1fB\xc7B}\xb3V\x97\x0f[\xf1\xa2w\xb6\xd2\xdc\x9b,\xa4\xb3wa\tM\xc6\xd0\xbc\x10\xd2\x88\xee\x92\xaf\xbc\x83\xdc(u\xc5e;\x8d\xa2O\x85\xc8\x88\xc8\xe5\x1f\xc9\xf5\x00}\x8dV\xaf\xcd\xc4\xb1\xc6_%\xb6\xe5Fm1\x92\xf81t\xa4\xea\xbd8\xf1LX\xae:\xd8\xee\x94\x93\x9cz\xd5N\xc7\xb9W\x18\xca\x10E\x8aB\xcerT\xe2\xd3\x90}&gt;\xa5f\xaf\x9bD`\x85rKh)y9*\x1dqW-\x9e-\x95\x8c)v\xc4s\x13\x92\xa4\xb4+k\xd5\x1dp\xe8*\xb4\xd5\xcfx\xb2\xd1\xb0\\\xf5U\xf9iR-O2\xd2\xbas\xa9Y\x1f\xecH\xab\xb6\xdfcv+\x9c\xf2\x96\x97O.I\xef\x8a\xad*I*\x11\x99l\xa5\x82:g\xd6\xba\xbd\x12\x0ch\xee\xbd\x19jS\xce\'\r\xa7?N\x7f\n\xe7_\x99u\xdb\xaf\x91\xea4\xf5\xd7\x97\xb9an\x96\xafV\x8b\xd2\xf7\rb\xc4\xd1\x1dV\xa8\xaay\x87y\xf9Kn\x82\nT\x08\xf3\xc8\xad\xa5|3\xf7\xdd\xad\xf5\xe1Z\xc1y~\xf2\xd4\xb9\xd0\xe3%\x99\\\x8b\xca\x80\xc7r?\x84\x05\xf8\x88\x03\xc86\x05h\xe3\x8fM\xdc\x8c\xd4\xeb\x1e\xc2\xdb$%\xe9\x17\x89"m\xf1m\x9f\xee"\xb4\xac\xf2\x9fu+\x1f\xa1\xab\xdb\xe1\xbf\xc5\xf6\xfa\xf0\xdb*f\xb5\xd2\x175\x8bC\x13\xdd\xf9\xabt\x870\xd3\xcd\x929\xbe\xfes\xd8v\x18\xe8\t\xc6\x01\x13\xbf\x0b\xe2N\xbc&amp;\xfeHW\x8b\xa7\x0c\x8c\x88U\x0e\xf1[\x1f\xa1eg\xc8W\x19P\xeaEE\xae\x16~*\x9b\x11\xc4\x1ch\xb6\xcb\xd4\xe4YoN\xa4s\xc4Z\xb2\t\xf5\t\xc9V\x0f\xaa|D\x802T*O[.\xd6\xdb\xcc\x16\xeeV\x99\xec\xca\x8e\xf2r\xd3\xf1\xdc\x0bB\xc7\xa8P\xe8jF\xd3O\xa9\x07\x94%\x07\xb3G\xa6\x94\xa5`\xc0\xa5)@\n\x8b_\x10?\x89v\x9a\xe0~\xd6\xa6\x1d\xdb\xc9\xf7\xbb\x8a\xd8J\xd8)u\x08e*WT\xf3}ADz\xe3\x18\xf7\xa5++\xb9\x95\xdc\xd4?\x17\xdf\x1a~17\xf6\x1b\xf6\xe8\xfa\xb9zn\xc6\xf9\xca`Y\x95\xe1\xadM\xf3c\x95J\x18\x19\x07\xb2\x80\xc9\xf5\xf2\xa8}|\xd5\xd7k\xb4\x95\\.\x93\xdfy\xe5%Re&gt;\xa7\t[\xc7\xbf\xd4I%G\xdc\x9aR\x9c\x8aIt\x1b\x8aJ\x04\x7f\x7f]I\xb8\xeb\x99Z\xeab\x16\xbf\xd9\xb3\x04T2U\x93\xc8\xe7\xd3\x81\xe81\xdcU]\xc6\xdd\xd3\xf7\x87\x8b\x0f\x17#\xb8\xa2\xa6\xdas\xa8BO\\c\xb0\xa5(\x97\xe6B\xb3ob\xf8\xdbMe\xa9t\xdd\xf5\x8b\xf6\x9a\xbb\xbb\nl6\xf9\xd8\x98\xd2\x8f;#&lt;\xb8\x038ZO\x9a\x15\xf4\xe2\xb6\x13\xc2w\x10W=\xe0\xd2\x8fG\xd4\xd6\xb4"\\\x00\xa4&gt;\xeb\x00\x04:\xb4\xab\x90\xa8\x0f,\xf7\xc7\x95)P\x7f\x12U_\x9b\xbe\xc4\xff\x00\xc2\xd6N\xca}Os/[\xed\xb0\xa4\x91%l\xa7\x98\x8f\xe4\x15Yj#\x11\x92\x10\xdbc\xd7\xb5)PY\x7fq\x93(\xa5\xe6\x1fr\x94\xbd\x146R2\x0es\x8a\xb4wkq\x0e\xdd\xe8\xd9\x9a\x9d\x88&gt;*cGQK \x01\xcc\xa0:\x1c\xf9~T\xa5\x15uk\x7f\x93l\xbf!\xad\x8dg\xa9.\xda\x9bqo\x1b\x85\xa8$)\xd9oE\xf1\x12B\x89(I*\xc2\x01&gt;B\xbc\x1a\x1fr\xb5\xbe\xe0^\xad{c\x16\xe6!\xda\x99t;&lt;#&gt;#\xe1G\xa2A\x1d\xbbu\xf5\xa5*\xdd\xd1\x92X(\xaau\xc9K\xfa\x9fs8\xea\xab\xb5\xfbH5c\xbdY.*l75\xd8\xe9\xe5QJ\xd2\x9c%i \x8f1\x923RW\x86\x8f\x8b\x1f\x12[\x05)\x0e\xbf}v\xf7mJ\x82\x9d\x8d5\xc2\\Z@H\xe5+$\x85`\x10\x01XV\x07\xdd\xe4\xeeT\xae\x8c\xd2\xe2-\x91\x08\xba\xd7Cg\xbc9|B\xa6q\x1b\xa7\xa0I\x8b\xa3\x8d\xad\xe9\x84!o\xa5`\x84\xaf\x97\x98\xe1\x04\xab\xa7\xbf7\xe5R?I\x85M\x80\x89\xaf\xcau\xd7\x142\xa58\x7f\xa0\xa5)w\xdc\xe3\xb4\x91Z\xa5)X0\x7f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>801563</v>
+        <v>798839</v>
       </c>
       <c r="B20" t="n">
-        <v>1954</v>
+        <v>1967</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fernando Seabra</t>
-        </is>
+          <t>Juliano Roberto Antonello</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>802281</v>
+        <v>801563</v>
       </c>
       <c r="B21" t="n">
-        <v>72016</v>
+        <v>1954</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Raphael Laruccia</t>
-        </is>
+          <t>Fernando Seabra</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x07\x08\t\x03\x04\x05\x01\x02\n\xff\xc4\x00?\x10\x00\x01\x03\x02\x05\x02\x04\x04\x04\x03\x07\x03\x05\x01\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!\x081\x13"AQ\t\x14aq#2B\x81\x15\x91\xa1\n3Rb\xb1\xc1\xf0\x16$\x92%\x82\xc2\xd1\xd2\xe1\xff\xc4\x00\x1d\x01\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x05\x07\x03\x04\x08\x02\t\x01\xff\xc4\x008\x11\x00\x01\x03\x02\x04\x03\x05\x06\x06\x02\x02\x03\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x06AQ\x13"aq\x81\x07#2\x91\xa1\xb1\x14\x15BR\xc1\xd1\x083b\xe1\x16C\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xcc\x18\x10\x8c\x18\x10\x8c|\xf8\x89$\x84\xa8\x1d\xbf\x9b\xe9\x81\t=\xa8\xba\xa3\x914\xa6\x82\xac\xcb\x9f\xf3$ztT\xa8%\x05\xd5]o,\x9b\x046\x81u-D\xf6JA\'\x11\xcf\xa9O\x89\xee@\xd3\xba4z^\x8d\x88\xf5\xaa\xfc\xe6R\xeb\x7f8\x85\x88\xf1\x1b*\xdaK\x9blT\xb0\xa0S\xe1\x82&lt;\xc0\x82E\x8e#\xab+\xe1\xa5i\x17\xef[o\xb2\xde\xa3\xa1\x96\xa9\xc0\xdb\xbb{]D\xea\x7f\xc5\xd3\xaa:\xded\x97A\xa4\xe7\xeaKk\x90\xa2\xdbr\x1f\xa42\xa6\xe3\xb8\x08\xbf\x86\x80/ap,\xb2\xab\x93k\xdf\n\xa6&gt;0\xda\xf9\xa7\x94\xc8og\xc8\xd9Z\xb5\tHk\xc4\x98^LY\x8e\x02S\xb9j\xda\x0bh\x1f\x9b\x90\xd1\t\xe3\xbf6Wn;\x89GP\x03\xc0 \xf8&amp;\x8f\xc8p\xf9!%\x84\x82&lt;T\x84\xd3_\x8a\xee\x84g8\x90g\xe6*\xd2\xa8I\x9a\xf2\x1aK3io--\xdc_\xc4\\\x84\x1f\x0c7oP8\xf5\xc4\xaa\x835\x8a\x846\xa7Dy\xb7\x1by\x01m\xb8\xd3\x81IZH\xb8 \x8e\xe0\xfb\xe1\xa6\x83\x10\x86\xb9\xa7!\xd4n:%z\xea\t\xa8\\3\x8d\x0e\xc7\xaa\xd8\xc1\x89\x05\xa2\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c6\xfdL\xeb\xcd\x1f@t\xf1\xea\xfb\xce6\xe5Zr\xc4&lt;\xbd\x06\xc5J\x911\xc2\x10\xd5\xc0\xe7`Z\xd3\xb8\xf0\x00 ^\xea\x00\xe2\x95\xf9#.\xe8\xbd\xc2\xce\xd2@\xde\xaa\x0b\xfc@\xb5\xda/N49\x14\xbc\xc1X\x95\x9a\xb5\x1a\xa9ClC\xaaLd\xa8B\xde\xa2\xa9+\x8e/\xf8\nW\ti)6H\xe6\xc4\x92UW\xd9\xf3\xab5\xa9nO\x83G~4\xcf\x0c\xf8\xf5F\xe3\x15,\xa4\xa3j\x94\xe2\t\x05.$\x01\xb9I\xba\x00=\x94AN\x15\xaar&gt;\\\xb7\xb9\x1b\xdf\x99\xe6\x9a\xa9\x1a\xe1\x1ekX\x1d\xbc\x02De^\xa0\x98\xa7\xba\xd5S2\xaec\xcd2\x9f\x1d\xa8\xf1[Y\x0e\xa1.X\xdbq\xfc\xc5v;nI\xb1\'\xb0\xc2\x8eF\xb7g\xedR}\x99\xf5p\xf2b\xb6\xa0\x86\xa3\xa1&gt;\x1cv\xdb\xb1&gt;\x1d\x9d\x16Z\xc1\xe0)W\x06\xe4\x84\xdf\x9ca\x92\x08\xcf}\xdc\xb6[Q\xc9#{\xa3\x9a}\xe9z\xd7\x93!d5Ss]Y\x9a\x95S\xc1J!\xd1W0\xfc\xaaO\xaaV\xa5\x00o\xfa\x94O {\xde\xf8\x93\xfd0u\xfd\xad\x9aO\xa7\x90\xf2\x9e\x99\xe6\x18\x93#\xd3\xe4\xb6UI\xcc\x1b\xe4\xb6\xe0R\x86\xf6c\xdda\xd4\xa3\xcd\xbbx!\t\xe0\x04\x9b\xf1\x11\x0c\xd58t\xfd\xb3\r\x85\xf6\xea9\xa99\xe9\xe9\xeb\xe9\xfb)\x05\xcd\xb4&lt;\xc1\xe4\xad7N\xb5\x13,\xea~W\x8d\x9a\xb2\xc4\xf4\xbc\xcb\xcd\xa1KM\x88-\xa8\xa4\x1d\xa6\xe0{\xf0{\x1e\xe2\xf8P$\x80;b\xc5\x8aF\xcd\x18{v"\xe3\xd5W\x12\xc6\xe8d,v\xe0\xd9}w\xc1\x8c\xcb\xc20`B0`B0`B0`B\xf0(\x1b\xf3~1[\x7f\x16\x8d^\xc9\xda\xb9\xaa9o$\xe9\x0ez\xfe!X\xca\xb1j-\xd5Y\xa6\xb8\xd9CR\x8f\x82\xf3M\xa5|\x97\x1eJ\xe3\x8b\xb2\x07;\x90n\x14\x13\x88ln\xad\xb4\xb4%\xc7sk|\xd4\xae\x07J\xea\xaa\xf6\xb4l/\x7f\xb2\xad\x8dF\xd5\xedf\xd5MB\x91\x98\xf5\x8f5\xce\xaa\xd4)\xec\xa2$YJ}-\'bVT\x10\xed\x806I*&lt;\xed7$\x1b\xf0\x03\x93\xa6}=U\xb5B\xa5\x16]\x7fN\x13!E\xb0\xea\xfeM\x94\xb6\xe7\xd1j\xb8\xd8\xd9\xb7\xad\x81"\xd6\x02\xf8V{d\x9b\xde\xdfR\x9e)"l~\xec\r\x02]\xd1~\x1dq\xa4TS\x01\xcd6u\x98\xee=\xe6R\xd26\x94\x0bY^^\x01\x1d\xbb\x0b\xd8[\x82p\x83\xea\x0f\xe1\xf5X\xd2\xdc\xc2\xda\xa8\xeb\x90)oY\xb6\xd9B\x87\x80\xd1"\xdb\xb6_\x93\xeeG\xf5\xc6H\xe4\x99\xad\xef\x8d\x96w\xd2\xc4\xe1\xdcL\x8ea\xd1\x9c\xc7\x94kd\xbf\x98\x19\x8e\xdbe;T 8\xe3\x8d\x02\x7fE\x87\'\xecG\xa9=\xaf\x87oK\xf2\xd6O\xc9\x14je_,\xd4\xeaU\x89\xd5G\x9e.="?\xe7k\xb2\xbc\xa5\xc5\x90\xa2\xad\xc9\xfc\xc9\n=\xbd\x95\x1b[P\xe7E\xdd\xb7\x8a\xf5KJ\xd8\xa4\xef\\\xf4So\xe1\xdb\xd4\xa4|\x99\xaa\xf4}4oP\xf3$J%fZ#\x1a|\x88\xed\x86\x98x\xdc6\x85!\xf6\xbcF\xd0TB&lt;\xb6 \xa8\x1b\xda\xf8\xb3\xae\x05\xb9\x1d\xb0\xd9\xc35.\x9f\x0f\xca\xe3r\xd3oNI+\x89\xa9\x9bO_\x99\xa2\xc1\xc2\xff\x00\xda\xfa\xc1\x86D\xbc\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\xa2\x97\xc5_\xa9,\xe1\xa0:\x0b5\xcc\x98\xdb\x88~\xaa\xc3\x90\xa5NnieQ[q\x04\x02\x8d\xbem\xca^\xd4\xee\xf2\x90\n\x82T\x14AO\xe7\xff\x00+\xd3s\xfe~\xd7\xe8\xb44f9L\xa9\xea\xc7\xfe\xa4\xf3r\x0b{\x12\x1c!\xc5[\xf4\x9b\x12\x91kv\xfa\x8c@\xe2\x1e\xf6b\x1c&gt;\x11\xa2`\xc2\xc6F\x0b~\xa2\xac?Lz2\xc9I\x91\x16e~\x1b\x8e8\xca\x1bq&gt;!\x03\xfd\xaem\xfb\x1f\xb5\xaf\x89K\xa69&gt;\x89\x95\xe0&amp;\x93F\xa74\xcb!\xc2\x02[H\x06\xdf\xf3\xfdq\x06\xd6\x1c\xc4\x00\x9fY\x926\x84\xe1\xc3A@JCiRm\xca@\xfa\xe3~\xa1\x90\xa8\x19\xa6\x9aX\xaa\xd3\x19\x90\xdb\x89\xf3!\xc4\x02\x0f\xd3\xed\x8cm\x0fc\x96i\x0cyA\t\xb6\xcd\x9d\x1b\xe9\xd5]\xb54\x9a\x1b)C\xcbQ\xda[I\xf0\xc9\xeeG\x1c_\xe9\xef\x883\xf1\x0f\xe9\x139\xf4\xe5\x97#g\r+fC\xd4\xa3Xm\xc7\xd2\x87\x15h\xc5HRT\xae\xe2\xde`\xd2\x81\xb8\x03i\xf7\'\x11rD\xd8\xe6\xb9\xd8\xad\xb2\xe6\xd4\xd3\x10&gt; 4\xf4H\xbd\x19\xd6\xdc\xf2\xdei\xa3\xd65\xa2\xaa\xe2\xa0\x87#)\x0e8\xb0^p\xb4\xf2\x17\xb1!\xb0\x1cp\xee\x01&lt;^\xc0\x83\xce/\x9fKs%O8\xe4\x1a^n\xacR]\xa7\xbfT\x8a%*\x9e\xfa\x82\x9c\x8c\x97\x0e\xe4\xb4\xa2\x92ARRBM\x89\x17\x06\xc4\x8cO\xf0\xabY\x13\xa5dc\xbal}vH|W\x98\xf6oy\xd7Q\xf6)G\x83\x0ei5\x180!\x180!\x180!\x180!A\x1f\x8f\xfc6\xe9=\x0e=\x9b *;/1\x9a"\xad\xc4\xab\xca\xa9\x0b,\xba\x81\xf5QJwX{\x80\x7fN)\xc7\xa4\xa51U\xd57\xab\xd9\x8e:S\xf3\xd5e&lt;\xdb\x8bP\n}J**"\xe4\xf06\xd8\x0f\xf7\xbd\xe2+#\xf7\xe7\xc4)\xec5\xc7+OB\xadC)KfT:mE&lt;7".\xc3\xb7\x80\x08\xe0\x0f\xf9\xff\x00\xf7\x0e\x1d\x13z\x83\x7f.\xa4\xa4%@\x15\x0f\xb5\xbf\xdb\x10\x0evW\'\xc8\xbb\xec\tQIvR\xdeK~\x12\x8d\x95\xf9\xb9\xed\xef\x85].S\x8aF\xc6]\xf3\'\x82\x94\xfe\x93\xed\x8cou\xeeB\xd8\xec\xec\xd0\n\xda}\xa7\xf6\xaa\xeb\xed\xfd1\xc8\xcc\xd9Z\x8b\x9a\xa8\xefQ3\x155\x99Q\xe46\xa6\xdfa\xf6\xf7%i&gt;\x84\x1e\xf8\x87\xa89\x9d\xaa\xcb\x0c\x99H-P[\xac.\x9f\xb26\x80\xe6\xb4\xe6\x9d4\xa0G\x83h\xe5\xe7G\x84\x16\x95\x10m\xb7\x9eF\xe1t\xfb\x0b\xf2,qd\xbd\x01g\x965\x1b\xa4&lt;\x93\x99\xa3\x976\xff\x00\rT`\x97\x9c\xde\xa4\xa5\x97V\xd2A77\xf2\xa0[\x92-lM\xf0\xc7v\xa5\xc3\xa8\xfeBT\xe2\xf2\x1f\x0b\x08\x1c\xfe\xe1&lt;\xf80\xee\x90\xd1\x83\x02\x11\x83\x02\x11\x83\x02\x11\x83\x02\x14\t\xfe\xd1\\\x18\xb5&gt;\x80"\xd3\x9eS\x81\xe7\xf3\xe5=\xb8\xaamD\x14\xa8\xb3$(\xff\x00\xe1\xbcs\x7f\xcd\xeflTOF\xb9\x19\xcdf\xd6\xdae66\xe6ht*h\x95V[gj\x94\xf1!\x01\t\x1e\xca#w\xa0\xb6\xef|Db\x07-\xca\x9e\xc1\x99\xdaH\xd6\xf8\xab4\xa3\xd5\xa0?Ka\x84\xc9K\t\x8c\xd8\x1f\x97\xca\x9b\x1b\x0f\xe6&gt;\xf8[\xe5\xcc\xfd\xa7T\x88\x1e,\xac\xf7KM\xael\xa9\xc8\xdcU\xdc\xf0M\xcd\xac{\x03k}1\r\x1cm{\xae\xe4\xf8\xde\xeb\x00jYe-R\xc9\xf2\x15\xf3\x91kq\xe56\x94\x95(\xb2\xe0R{v\xe3\x1d\xd63\x85\x1e\x9a\xcc)\x0e\xafg\xcc8T\xa1\xdb\xcbn\xf8\xc5#c\xccl\xb7[\x1c\x8eh\xf1J8\xb9\x9a\x9fQ@Dw\x9bWk\xa5*\xba\x87\xed\x8cS#\xb8\xe03ZP$\x0b\xa4\x03\xdf\x11\x15\x90\xbb\xe2\x0b\xccl\x10\xbb^j\x10|M\xf5.^N\xcc\x14\xba;\xd4\xb5JMz\x13\x8c\xc3;O\xf7\x89ZTSq\xefo\xa1\x18\x9c\x7f\t\xc8qa\xf4\x1d\x92\x1d\x88\x87\x12\xdc\x94Ky\tyWRRe;\xb4\x1f\xa8HH?[\xe2S\x86\x1a{rOC\xf7\tc\x8b\xec"\r\xe8G\xd9I\x0c\x18xH(\xc1\x81\x08\xc1\x81\x08\xc1\x81\x08\xc1\x81\n\x06||\xa6\xc2\xact\xe5\x94\xb4\xb9\xc8n*Mk6*L\x19L\xb6V\xa6\\\x8b\x15\xe5\xda\xc3\xfcAe=\x8d\x8d\xb8\xf6\xad\xaf\x87\\\n}&amp;\x05zt\x16\xdbK\x8a\r2\xb4\x84\xed\xdaPUa\xf7\xdan}q\x03\x89I|\xcd\xe9o\xe18\xe0\xd4&amp;8\xe0\x9e\xff\x00\x18w\xd0\xdb\xf8O&amp;\xbdg\xe9Y6\x80\x97\xa2\x7f\x10\xa9n\xd8D*kJq\xc5_\xb9 \x0b\x80\x07{\x02O\x16\x1e\xb8j\xea\x9a\xf1\x9c3\xe5xi\xcc=\t\xaf@\x9e\xa1\xb5\xaa\x9cw\x80J\xec\x96\xb6\xdd\xb2\xbf\x0c\xeeC\x9b\x85\x9d7\r(\x9b\r\xb7\xd3\xa4\x84T\x87\x9b\xda\xc10\xcdT\xeaC\x18\xc8M\xdc\x1b\xe4J_\xf4\xe3T\xd4\xaaV`m\xc9\x8d\xd4\x1b\xa7\xb2\xe2\x9b[2\xac\x84\xb8\xea\x0f)%IJ\xd2mumP\x07\x82.G&amp;R\xf5.\xc6|\xc8ZP\xdeu\xcb\x92\xbciE\xa2\xa6\x19e\x858wv\r\x84\x0f\xccM\xfd,x\xc4]Ps\x05\x81\xe6\x13\x15+\xc96x\xda\xe3\xe5\xaf\xf0\xa1}7\xac\x1a\x9eD\xae\xc7\xcd\xf9\xcbVj\xd4\xd8\xafL\xf9m\xed\xc5yI\xf1\x92\xa4!I\xd8\x94\xb8\x91e8\x90R\xa5\x05\x82yH\x1c\xe2Rh\xb7Y\xeef\'\x85.\x8fXz\xa4\xe4\xa8\xa8\x95\x01JV\xdf\x99l\xa0,\x84\xa1`-\xb5\x94y\xc2\x16\x94\xefH%;\x80Q\x1a\xb5\xd4\xb3S\xd2\xb6bW\x9az\xdaz\xba\xb7\xc1mF\xfa}\x96o\x88\xfe@s&gt;h\x15?;S`\xee\xa8\xd1*h\xa8ERE\xd4\x92\x19r\xe0{\xf9\xac-\xf4\xc4\xcb\xf8e=NWFyA\xb8O\xb4\xa7J$\xc8\x98\xdbI)KN\xbf!\xc9\x05 \x12v\x8b:\x08\x1e\xc4v\xed\x89\x0e\x16s{B\xd2u\xb1\xb7\xcc%\x0e4\x89\xe5\xa2@4\x16\xbf\xd5?\xf80\xf0\xab\xc4`\xc0\x84`\xc0\x84`\xc0\x84`\xc0\x85\x13&gt;-zW79i\x1eT\xd48\xd2\xfc\x162^nj}I\xcfQ\x15m8\xd2\x88\xff\x00\xdc\xa6\xc7\xef\xf4\xc5Yty\x91*\xd9r\xa9\x9be\xb2\xb0\xe56T\xf0)\xb2\x81."G%EH\xec8\x1eS\xec\xa1\xf4\xb6\x17q6\xe5\x99\xc3\xf7\x00~Z+\x1b\x03=\xb6\x11\x03\xc7\xfe\xb78\x1f]G\xddK*V\x9b\xe5:\xc5-\xb4\x18InK\xcd\xdd\xe52\x8d\x9b\x14;\x1d\xc9"\xc7\xf9\xfd-\xce3\'E\xe6Tg*4\xaa\xd4\x94\xa1)I\xf9\x84\xc4i\x05C\xbe\xd2\xad\xa4\x92=\xef{\xfa\xdf\x11\x91\xbb\xb3nPS;!t\x87\xb4oD\x9c\xac\xe4\xc8\x94y\x7f\xc3\xa3&lt;\xfb\xdb$\x04\xb2\xec\xa9*[\x8a7\xe5&gt;bl&gt;\xbc\xdf\x8f@1(]\xa0E\xce\x9aT\xc4\x1a\x94r\xad\xbb\x01J\x8fo(\xdaG\xef\xed\x8dz\xb8\xcc\x8cs\x94\x83cd10\xff\x00\xc8_\xd5G\xf9\xbd\x18fzl\xb53\x95\xdd\xa3T\xa9\x0b\x90\xa7\x13K\xaeB*\xf9u)W^\xd5\'\x83s\xee\x93k\x0e\xd6\xc3\xa7\x96\xfao\xa8\xd3\xa8q\xa5\xe6\xec\xabEe\xd8\xc5&amp;\x0b\xf4\x18\xa5\x89-)"\xc9\xda\xf5\xc2\xbf/\x16\x04\x028\xf4\x18\xd0\xab|\xd54\xd6\xbe\x9fo%\xf8\x1dIK=\xdd`I\xb5\xfa\xf4\xbf5\xa3\xd4dH\xac\xe9#\xd4\xf7\x16\xb5x\xae\xf8d\xc9R\xd6\xa0\xa2\nAV\xf5\x13\xc1#\xb9\xe3\xbe$\xc7\xc3\xf7 \xabN\xba^\xa0\xd1\x1c\x80\xb8\xaay\xd92\x8bN\x8f0\x0e\xbe\xb5\x82}O\x04r}1\xbb\xc2\xcdq\xac\'\xa3\x7f\xa4\xb1\xc6r1\xb8K\x9b\xcd\xcfg\xc8\x07}\x13\xdb\x83\x0f\xea\xaaF\x0c\x08F\x0c\x08F\x0c\x08F\x0c\x08MgZy~\x0eg\xe9g:\xd2*,\xa5m\x1a*\xddZU{\x1f\x0c\x87=9\xfd8\xaa\xcc\x81\x95)\xfat\xd1\xca4\xa7Ti\xacIqt\xf4\xa9\xe2\xe6\xd6\x16\xe1XI\xbfo2\x97\xc7\xb1\xf6\x1cA\xe2\x8c\xf7\x81\xde\x16\xfa\xa7\xbe\x18\x91\xdf\x96\xc9\x1f,\xe0\xfd\x13\xc1\xa5\xf9\xbe\x9fNu\xa8u\xf7\xbcG\x1aO\x99\xc4\x80\x9d\xdf\xb0\xfd\xaf\x8e\xa6f\xd7\x95W\xb3\x03\xb9\x1bI\xe8\xed\xc8\x99\x1c\x03S\xa8-$\xb3OI\x1c\x15\xab\xf2\x95\x11\xc8E\xca\x8f{Z\xe7\x11n\xcaZ,5:\'ZG9\xba\x93\xdd\x1a\xff\x00\xd2bu\x07_\xa0e|\xe3\x1a\x0enb\xac\xf5I\xca\x83\x8bjDZ&lt;\x97\x99(I\xb8*q\x08-\xb6l?Q\x1f\xe9\x87\xde\x0f\xc4\x03B2\xaeM[\xb23\x0c\x8f\x97LvV\xa4\xc7\x82\xec\x87E\xc7o\t\xa4)\xc2B\xaf{\x02l.E\xaeq\x8e\xa4\xf6p\x90G\x92\x95\x89\xb1\xd4\xb4E}7&gt;\x96\xb7\xff\x00j\xbb\x19\xf3\xa9\x8dD\xd3\tP\xb3\xe53\'9Z\xc9\xb58\xcdHB\x93\x19BLd\x94\xff\x00x\x11m\xcaA\x1ekZ\xe3\xbd\xad\x873!\xf5-\xa7:\xc9\x97\x18\x95@\xaf2\xe3/\'{jm\xc0\xab\x1f^\xd8\x8a\xcc;\x0b\x1e|\xd6\x1a\xac:\'\xc8\x1f\t\xbb\x9b\xb8\xe5q\xccx\x15\xa7\xa9\xf9\r\x8dJ\x8f\x1e\x8eR|\x06\xe6\xb7)\xdd\xb7!\xc6\xdb\xe5H\xef\xc9Rn\x05\xf8\xbd\xb11r|E@\xca\xd4\xf8\x85\x01*j\x13HRG\xa1\x08\x1cb[\x85A\xcf!\xf2H|n\xe6\x88 g=o\xf2\x0b\xa9\x83\x0ej\xbcF\x0c\x08F\x0c\x08F\x0c\x08F\x03\xdb\x02\x16\x95n\x8fK\xccTiY~\xb7\r\x12a\xcd\x8e\xb6%0\xe0\xba\\mi)RO\xd0\x82F+\x9f\xad\x8e\x972\xf7Ku\x9a\x1dG*\xe6\t\x93\xa0\xd7\x9c\x98\x94\xb1)\xb4\x8f\x94K~\x16\xc4\xee\x1c\xb9\xfd\xe1\xb96\xec\x9e\xdc\x93\x1d\x89D\xd7S\x97\xf3\x1f\xd8L\x1c=\\\xf8j?\x0f\xfa^~D\x04\xd7d\x98.\xd5gH\xf9e8\xa9OS\xdcTD\xed\xb5\x9c\x08;R-\xf5\xc2\x1bP\xb5\xb6\x17L\xb4z,\x0c\xe1M\x93M\xcb\xd5w#D\xa2\xd4\xa1CvS\x95\x1a\x84\x81\xb8\xefKHQ\xf1\\Q\xbf\x9b\xf3\x1b\x81\xf9p\xbd\x1el\xc2\xca\xc6\x136(\xae\xe3`7\xf2YR\xe6\x9ef\xf0\xe2j\xa6\xbf\x05\xe5\x84\x85\x19T\xf2\xc17QH\x16qC\x92AH\x1c^\xc7\xbd\xb0\xb6\xd2\x9c\x97\xd2\xfe\x9a\xa15z^g\xf9i\x88#{\x85\xb4\xa9\xc4(\x9e\xc4o\xb0\x17\xf4\x17\xc7\x9a\xb6\xb6H\xb3\x07\x03\xea7S\x98tf@]\x19\x06\xfc\xefu\xd6\xea\x0f\xacn\x96\xe0e\xa6\xf2\x85wZ *\xad1\x95\x1aM)\xbf\x17\xe7\xa4\xa96\x002\xdaRV\xb3~&lt;\xa0\xf3\xfc\xb0\x84\xe9\xba\x15j\xa9\x9d`g\xd4QgR\x1b\xa9*{5\x88\xb2\x98,\xa9\xf7\x18SiL\x85\xa3\xf4\xbb\xe7)R\xac\n\xb7#w)\xc4)l\x9f\x87$\xecv=V\xc3\xe6kg\xca9onGM\r\x94\xdb\xd1\xea5gP\xa6E\xa5R[}\xc5\xf8\x7f\x8d!\x17\x08i&amp;\xdeu\x9f\xf0\xf76\xf5\xed\xeb\x89v\xca66\x94\x03\xf9E\x8e\x18\xf8Z\x19\x19J\xf9\x0e\xce"\xde\x9b\xaa\xb7\x8ejc\x92\xb5\x917v\x82O\xad\xad\xf6\xbf\xaa\xfb\xc1\x86\xb4\x8e\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\xbeT@\x168\x8b\x7f\x16,\x8b.\xbf\xd3\xf4\x0c\xed\x05\xb2U\x97k\xad*R\x83{\xad\x19\xf0YU\xfd\x86\xf55s\xed\xfc\xf1\xadT\xdc\xd4\xce\x1e\x0bw\r\x93\xb2\xaf\x8d\xde?}\x14\x03\xca\x19\xfd\xea5V5C\xf1\x12\xa8kI\xf0\xdbE\xee\x05\xafq~\xfc\xfd}{\xe1\xdb\xacE\xc8Z\x99\x95\xa5e\x8a\xb4\x18s\xa1\xcfE\xd9\x8e\xf3)R\x14\x8b\xee\xdaRGt\xab\xb7b\r\xadc\x85f\xfc`+I\x8e\x0eh\xd1\'r\x95w6\xe9EM0!j\xa4\x8a[,8\xda[b\xa9O\x13#:\x848\\\xbf\x8bo\x15\'\x929X\xb0\xb5\x8d\xc08vr&amp;\xb3e7\xe4\xa8Vuw/\x158\xfa_\xdbM\xa0\xab\xc5*J\xb8\x00\xa9J\xe3jR\x9b\x90O\xad\xc7\x03\x1e*cm\x81\x12Xk\xa5\xaf\xbe\xa5I\xc3\x81\xe1u\x0c2\xc4\xd2\x1cm\xa0p\x03\xeb\xa8\xf2\xd5t"t\xf9\xa2\xf5\x8c\xf45\xa9\xdc\xb6\x8a\xa5m\x98\xaab\x05n\xa8\xd2T\xe4VO%\x0c"\xc1,\xa6\xfd\xca@R\xac.x\x16FU\xeaYz\x8f&gt;N\\\xa6\xc2\xfc({\xd0\xb7\x83w)*^\xf5\x81nn\xa3\xe66\xef\x7f\xa6!$xla\x8d:\r\x07\x92\xdd,lo\x0c\x00\x0bon\xb7\xb9\xd7s\xaf5,z\x01\xa4I^E\xa9f\xf9\x03\xc9.J#GU\xb8)i&lt;\x91~H\xba\xad\x7f]\xb8\x90=\xae\xac=`\x91\x98\xf0\xb8\xc1\xe9\x7f\x99\xba\xa6\xf8\x92a&gt;53\x87[|\x80\x1f\xc2\xf7\x06%\x94"0`B0`B0`B0`B\xf0\xa6\xea\xb9?\xb68Z\x8d\x92hz\x93\x90\xeb\x19\x0f0\xc2L\x885zk\xd1$\xb4\xbf\xd4\x95\xa0\xa7\xf6"\xf7\x07\xb8 \x11\x8f.\x19\x9bb\xbd0\xe5xp\xe4\xa8\xe9y\xbdT9\xcfQ\xaa\x92\x9c\x8dQ\x84\xeb\x88p(\x8b,\x03\xf9\xbb\xfd-\xe9l8:;\xad9}o\xbd\x97\x1au\xb76\x848\xca\x96\xaeOop-nn8\xb9\xee\x076R\x11\x1e\xd3UfGP\x03\x1a\x9f\x86(Y;&gt;\xd1\x9bZP\xdc\xb4&lt;&lt;\xcaR\xc7\x95V\xfb\xfb\xe3\xb3\x92\xf4\'Ei\xd5\x00\xfa\xa1\xa5\xb9V\xba\x93\xe3q\x7f{\x0e\xdc\xdb\xb5\xb1\xe2\xa1\x96m\x8a\x9f\xa4s\x83Ajp35W+\xe4\xdc\xb4\xe3-\xccg\xc3e\x95\x1d\xbe\'&lt;\x0f(\xfd\xce#Fh\xce\xb95\xaa\xf3\x8d\xd4\xf3DJe=\x0f\x07j\x15\x89\x8f\x16\xa2\xc4AU\x94\xeb\xca\x1d\x9b@\xf3(\x9b\xd8\'\xedu\xd1\x1b\xa4\x9d\xb1\xb3r@\x1e\xb6[STvq\xbaG\xf2\x04\x9fEf\xda\x13\x03O)ZIC\x83\xa5Y\x8a\rb\x84\x88)\xf9\x1a\xad&gt;R\x1ej_\xaa\x9d\x0bA)QR\xaeM\x8fsl,I\x1e\x9d\xf1g\xc5\x17\xe1\xe3\x11\xf4\x16\xf9*2i]&lt;\xce\x91\xdb\xb8\x93\xf3\xd5{\x83\x19V4`\xc0\x84`\xc0\x84`\xc0\x84`=\xb0!|X\xdb\x9b\xe2\x90?\xb4\xa7\xf1{\xeb\x03B\xb3\xec\xad\x01\xe9\x0fR\xde\xca\xb4\n+(\x87\x9d+tT\x84\xd4\x155\xf6\x92\xe2\x12\x87\xff\x003M\xa4-(;\nU\xbc\xd8\x9e\xc0oP\xd2\xba\xa0\xc8\xe0/\x91\xb9\xbc4 \x7f+R\xaav\xc4\xe8\xd8\xe3l\xce\xb6\x9f?\xad\xad\xea\x900\xd9N\xaai\xb5\x0fS`\xcaQ\x95:\x83\x16\xa0\xa5\xba\xab\x87\x92\xf3)qI$\xfb\x95r~\xa7\xeb\x86\xf79\xe6J~^\x94\xdb\x92g9I\x95\x1dVozv\xf8k\x06\xde\xa3j\x81\x1fk\x8f\\$\xb3\xe3\xb7Eh9\xbe\xed\xa7\xad\x8a\xfa\xa5u\xad\xab\xf9\x1e\x08\x99\x01\xe6*\xcc\xb6\x9bn\x8a\xe2JTM\xb9\xdalo\xda\xf6\xb8\xe4s\x855/\xe2?\xab5IM\xc8\xa7e\x85\xc6\x90\xe3\xdb_S\x04\x84\xa5\x1f\xe2\x00\x9eTo\xddF\xc2\xdfk\xf8\x99\xac\xd4\x92\xb7\xe9\xeb\xaa\x1a\x03r\xde\xc9}\x96\xfa\x99\xcez\x98\xd7\xcb\xd7\xeb\xa8u\'\x9f\xe1\xd1\x9d\xf1\x16\xb5\xde\xc1KX\'r\x8d\x85\x92.\x91\xf5\xb0\xb7s\xab|\xa4\xac\x93\xf0\xfb\xd5,\xdb^mI\x98\xf6W\xf0\x1bh\xab\xfb\x94\xbc\xfbH\xdb\x7fR\xad\xfc\x9b\xfd0\xbf\x0fw\x11\x8c\x0en\x1fp\xa5f.\x93\x0e\x95\xc7\xf6\x93\xf4O\xbf\xf6j\xb5\xad\xea/G\x99_Is\\\xc5\xa5\x9a\xd3\x93%Q\x97!\xc2v\xbd\xe3\xaf\xf0\xee\x7f\xc6\x81q\xf5E\x87\'\x16\x90\x94\x8b\xdf\x16\xb5dF)\x1a\x7fsA\xfak\xf5T\x8b\x1e\x1f\x9a\xdc\x89\x1fU\xee\x0cj,\xa8\xc1\x81\x08\xc1\x81\x08\xc1\x81\x08\xc1\x81\t1\xac\x1a\x93B\xd1\xdd+\xccZ\xad\x99W\xb6\x0e^\xa3H\x9f#\x9f\xce\x96\x9b+\xda&gt;\xaa ${\x921\xf9\x92\xea\xa5\xfa\x97R\xeeg\n\x86v\x91\xe2\xd43d\x89R\xa68\xa1}\xb2\x1dp\xb9\xbc}\x96A\x1f`=0\xf9\xc1\xb4-\xa9\xa7\xa9s\xb9\x8c\xbf0o\xfc$\xee&amp;\xab0T\xd3\xdb\x91\xbf\xc8\x8b\x7f*GtZ\xa5J\xe9\xaf!\xc4\x95r\xfc&lt;\xab\x0e4\xa6\xd2F\xe4\xad\xa6\x12\xdb\x88\xf6\x16)?\xbe\x169\xafL\xb2\xe5]\xbf\x071P\xa2\xce\x8e\x9b+z\x92\x14\xa29\xb8\xe7\x9e-\xcf?\xd3\x14\xcc\x8dtU\x0e\x07B\tW\xfcMl\xb4lp\xd4\x16\x8f\xb0Z\x99\x7f\xa2\x8e\x9d\xf3\xe3\xa8\xa7\xb7\x92\x18\xa7\xca\xdd\xb9Jm!\xb5\x0ex\xe4\x00\xab\x8f\xa1\xfbw\x18UP~\x19\xdd8P\xde\xfe#Z\x80\xe5Cc\xc4",\xb9\xcbx\x14\xfdw\xdcw\xb7\xa65+36,\xc0\xac\xd4\x11^l\xae\x1a\'KOt\x13L\xf2!R\xf2nN\x83O\xdb\xe5Ii\x906$\xf3\xb5&gt;\x82\xe3\xbd\xad\xcf\xbd\x80\xc2w\xe29\x94\xd1Y\xf8zj\x95%AQ&lt;L\xaa\xfb\xd1\xc9H6[+K\xc3\xd7\x92|$\x93\xedp8\xc2\xd8\x95\xcc\xab\x8d\xfd\x1c\x0f\xc8\x84\xdb\xf8V\x1a\x19X4\xbbH\xf9\x84\xde\xf4\x00+ZM\xd2\x86\x9e\xb0\xcc\xc53*\x9fE\x8d)\xb9M\xaa\xce4\xf1\xb2\xef\xc7b\x15\xc8\xfa\xe2\xe4zy\xd5\xb8Z\xdf\xa4T}C\x8a\x12\x87\xa5G\xd9=\x94\x8bxR\x11\xe5q6\xf4\x1b\x81#\xe8F/\xdc^\x9e\xd8|\x12s\x00\x03\xea\x07\xf4\xb9\xa6\x96KWJ\xc1\xb1$\xfc\x8f\xfd\xa5\xbe\x0c-\xa9T`\xc0\x84`\xc0\x84`\xc0\x84c\x14\x99,Der\xa5&lt;\x86\xdbm%N8\xe2\x82R\x90;\x92Oa\x83t*\xd3\xf8\xc8\xfcK\xf4+4h\xc5K\xa5-\t\xcfM\xe6J\xf5R\\s\x98&amp;Q\xdc\xdf\x0e\x1cV\xdd\xde[\xf1\xc7\x95\xc5\xa9m\xa4mA %*\xdcA\xb05)"s\xce\xbcP\x94yRn}\x8f\xd3\x17?\x07\xe1\xd3Pa~\xf4Y\xce9\xad\xcc\x02\x00\x17\xf4\xfb\xaa\xab\x89k\xe2\xac\xc4=\xd1\xb8h\xb5\xf9\x12\x0e\xb6\xf9\xd9;\xdd\x1d\xe7\x98\x99w9\xbd\xa55\x07\xb6\xc7\xaa6\xe5F\x86\\\xb6\xd5\x82@\x92\xc0\xbf\xeaJ\x94\x1c\xfa\x87\x15\xe8\x93\x89\x88\xd5\x1e=V\x97\xf3t\xc5%*\x1bC\x8d{\x8en\x08\xe6\xd7\xedc\xed\x8a+\x8a\xe8\xff\x00.\xe2J\x88\xf6\x05\xd9\x87\x91\xb1\xfeWEp^!\xf9\x8f\r\xd3\xbc\xeaCCO\x98\xd1z\xf6U\x91R\xa7&amp;]1\x99PfG\x1f\x86\xfc\x15\x84\x12\xae\x0f)7\x16\xec;zqnp\xac\xd3\x13]\xcc\r\xa6&gt;m\x8e\xe3\xae4\xe5\xd2\x97]#r\xb8\xe7\x8b^\xc3\xd7\xedq\xdf\n\xb8\x85\xbb\x1d\x13\x86\x1e\xdc\xb2\xea\x9ct\xd3\xe0\xb2\xda\xa5\x13\xc2S\xe6m\xb4\x8b\x81s\xeb\xfa~\xf8\x8c?\x11\xddQ\xff\x00\xaet\xe5:\x0fFaI9\xa6cT\x99\x05*6C.\xab\xf1\x8d\xfdU\xe1\x07?\x7fS\x88&lt;2\x99\xd5\xf8\xad&lt;\x03\x9b\x80\xf9\x90\xa7\xb1J\x96\xd0\xe13\xcd\xd1\x87\xec\xbbYz\x83\x1f)S#\xe5h\xb1\x1cn&lt;x\xe8i\x85$\x05%\x1bSk\x0b\x01\xc7\xf5\xff\x00L9\x1a1\xd4\xa6\xach;\x0f9\x91s%\x98T\xa4\xbb2\x976?\x89\x1d\xdb\x80\t#\xbaO\x00]*\x06\xd8\xea:\x9a8ja\xec^4\xfb.K\x8ey"\x93\xb4\x07U(\xf4\x93\xe2k\xa5\xb9\xa7\xc3\xa6\xea\x9d\x1d\xfc\xbb0\x90\x95Lf\xf2"(\xfb\xdc\r\xe8\xfb\x10\xa0?\xc5\x87\xff\x00$\xeaVB\xd4xK\xa8d&lt;\xdd\x02\xac\xd3J\x01\xd5C\x90\x16[\'\xb0P\x1c\xa7\xf7\x18\xaf\xf1L&lt;\xe1\x93\x06=\xc2\xce\xf8u\x00\x9bo\xa6\xf7\x1c\xec\x9ah\xa5\x92\xba\x17H\xc6\x1b6\xd9\x88\x04\x81}\x05\xce\xc2\xe7k\xee\x94\x181\xa0\xb6\x11\x83\x02\x11\x8c\x12\xa5\xc7\x83\x1d\xc9r\x9fKm4\x82\xb7\x1cq@%\t\x02\xe4\x92{\x001\xf9p5+\xf44\xb8\xd8(\x93\xd4\x7f\xc5\xf7C4\x82[\xd9\x7fJ\xa8og\xda\x9cr\xa4\xbc\xe4\x19\xa9\x8d\x01\n\x1e\x82B\x92\xaf\x13\x9fT%I\xff\x006*\xf7\xad\xcf\x89?V\x1dV\xe6\'r\xd6\xa1U\xa4e\x9c\xb6\xa5\xda6O\xa2\xbc\xe3Q]M\xfc\xa5\xd5\xa4\xdeQ&gt;\xa5Gh\xb7\tI\xe3\x12\xfe\xce1\xae\x15\xc7\xb1\xf7R\to;.Z\xd2\x00k\xad\xb9i\xbfx\x8d\xec@6\xd4\\\x02V\xc7\xb4\x8e\x07\xe3~\x16\xe1\x98\xb1I\xa0\x02\x9d\xf6\xccZI{/\xb0{l2\x83\xd4\x12/\xa1\xb161\xb2\x03\x7f5X\x96\xfb\xd2\x94\x90\xa6[K\xaao\xf3\x9b\x15\xf9G\xb0\x1f\xd3\xb7l\x12\x0c\t\tT6Q\xe1\xa4 \xed\xdcy?rq\xd1\x12B\xd8\xdeZ\x179C3\xa4\x8c8\xf3[\x99v\x9bP\xae0\x88\xf9jzb\xd7i3\x1b\x9d\x97\xe6r&lt;9\t=\x8f\xf9\x14\n\x90\xa1\xea\x95+\x8cO\xde\x98s\xa5?T\xf2\xbcZ\xb3\x90\x97\x1a[\x8d\x86\xaa\xd4\xf7\x13\xf8\x91$\x04\xd8\xa4\x8fk\x8f\xb7\xfab\x87\xf6\xa9\x87\x88\xab\xe0\xab\x03\xe2i\x07\xcc\x1e~\x9b.\x80\xf6K\\\xe9p\xe9\xe9\xaf\xf0\x10\xe1\xe4G\xf65N|\xac\xb9"\x90\xe8v3\xaa\tK\xb7\xdba\xfe\xb7\xfe\x84\x7fS|oQj\x11\xfee&amp;E-{\xd4\xaf\xc4N\xdd\xd7\xe7\xd4\x0b[\xef\x7f\\S\xb5M.\x8c\x85tR\xbd\xbd\xa0%w\xb3*+3i\xa9\x83L\x1e\x1e\xe4\xf0\xde\xdf\xc8\x9bw\xb7\xdb\x10\xd7Y\xab\x99j\x8b\xd4q\x9f\x9b\xeaM\xc5\xa1\xe4\x9ajgU\xaa\x92Q\xf8,\x15\xacou\xc2/\xb1(m&amp;\xe7\xb2B\xc9\'\x9cop\x1d+d\xe2\x98K\xf6m\xcf\x95\x85\xfe\x85i\xf1\xe5k\xa3\xe1i\x839\x80&lt;\xee@\xfa\x82S\xc5\x95\xf3-\x0f;\xd0[\xcc\x19b\xbf\x16\xa5\x06B|X\x13\xa0\xc8C\xcc\xba\xd9&lt;\x14-\x04\x85\x8b[\x90q\xd4\x91\x08:\x83\x1aB\xc6\xd7\x13\xb5\xcf-\xd4\x07\xb8\xe3\xb8\xe0\xfe\xdf\\tKAq\xb8\\\xda\xd3\xb0II\x01\xd6%\xae\x9b-\xa4\xa5L8E\x91\xeb\xcf\x06\xfe\xa0\xf7\x07\xdb\n\\\x85\xaa\xd9\xd7L+\xcdfL\x95\x98_\xa6\xcbg\x80\xb6W\xc2\xd3\xfe\x15$\xf0\xa4\xf1\xd8\x8bc\x87x\xcb\x8bq|c\x8a\xe4\xac\x90\x98\xccN-co\xf0\x86\x9b[\xcc\x9b\x93\xd4\xdcm`\xbe\x84\xf0W\x02`x?\x06G\x87\xb4\t\x1b3\x03\xa4u\xbe2\xe05\xea\x00\xd3/@\x01\xdfyS\xa4\xdf\x14*l\xa4\xc7\xa5j\xf6Nq\xb78K\xb5JI\xbaO\xf9\x8b*7\x1f]\xaa?A\xe9\x89M\x93\xb3\xaeT\xd4\n\x139\x9f&amp;W\xd8\xa8\xc1|~\x1c\x88\xcb\n\x17\xf5I\xf5J\x87\xaaM\x88\xf5\x18\xb4\xb8K\x8ba\xe2\x18\x8cR\x0c\xb34\\\x8eN\x1f\xb9\xbe\xbb\x8eW\x0b\x9d\xfd\xa0{=\xaa\xe0\xea\x91,g=;\xc9\rw6\x9d\xc3]\xca\xf6\xd8\xf3\xb1\xd0.\xce\x0c:\xaa\xe14\xddJ\xf5\x89\xa2}-\xd0\xcc\xbdC\xcc\x01\xea\x9b\xcd\x15@\xcb\xf4\xfb92O\xb1\xdb\x7f"o\xfa\xd4@\xf6\xb9\xe3\x15\xa1\xd5\x8f\xc47[\xba\xa1rF\\vJ\xb2\xf6VR\x8f\x87@\xa7&lt;\xaf\xc6H\xecd9\xc1x\xff\x00\x97\x84\x028M\xc5\xf1V\xf1\xdf\x14\x88\x1ap\xdaWw\x8f\xc6G!\xfbG\x89\xe7\xd0i\xcc\xdb\xa2\xbd\x8c{6v#3q\xdcA\x9e\xed\xa6\xf1\xb4\xfe\xa2?Q\xf0\x07\xe1\xeau\xd8\x0b\xc7\xd2\xd1Q\xb2F89\xe9\x9c\xa4h\xc5\xbc\xd8\xf8K{\x89l5\x7f\x15K\xb5\xbc\x96\xf3_\xed\xe9\xdf\x08\x1c(\xdcnn!\xa5n\x11\x7f\xc4\xe7\x19-\xc8\x83pM\xf4\xb0\xdd\xd7\xd2\xd7\xba\xe8.7\xff\x00\xc6\xe9\xb8J\xb1\xf8\xf1\x1f\x83\xc8D\x97\xbe\xad"\xc4\x0bk\x98\xde\xcd\xb6\xb7"\xda\xa6j\x88\xed\x0eNe\x99K\xa13+\xc0K!m"kvP\tY\xbd\xc8\xe0\xf2\xbf\xbf\xbe3\xd4\xa9\xc5\'\xc4KIM\xff\x00RN&gt;\x97PG_\xf9|b\xbc\xb4\xcf\x95\xb9\xcb/\x975\x85\xed}m}\xaf\xc9|u\xc4d\xc2\x9d\x88\xcc\xec0&lt;Sg=\x98\x92\xd9\x83o\xa6l\xba^\xd6\xd96\x9a\xbf\xd4\x14\x0e\x99\xe9\x07;LZ%&gt;\xbd\xcdA\xa5x\xdbU)\xc2?\x98@\x06\xeaU\xb8\x16\x1c\x920\xfb\xf4]\xf19\xd0\xda\x86k\xa6\xe6\x0c\xe5!YjuZ;/\xc8m\xb9\x08v\x14\x85\x00\x02\xbf\x10\x1f\xc1y\x06\xfb\x83\x96\x04\x10\xab\x80\xb1z\xcb\x8e\xe2\x87\x18\x8c\xe1\xed\xff\x00dv{|N\xd9|\t\x16#\xc4\x8b\xe8\xac\xefgU\x92`\xb5-\xac\x93\xfdR\xdd\x8e\xdf\xba4\xefy\x03\xbf;^\xca\xd14\xc3Rt\x7fZ),K\xd3\xadG\xa3\xd5\xa4)\x9f\x11q"\xceio!6\x06\xe5\xb0wp\x08\xe6\xd6\xe4\x1b\xf20\xb6\xca\x9am\x16C\xbe2ZS{\x1b\xfc\xad\xa4\x13\xda\xd6\xfb\xdf\xd7\xeb\x8a\x06h%\x88\x86\xca\xc70\x90\r\x9c\xd2\xd3c\xe0@*\xff\x00l\xb1=\xc4\xc4\xf6\xbc\x02E\xda\xe0\xe6\xdctp$\x15\x8fZkY;D4\xf6Fv\xceU\xf8\xb0b\xb6\xca\xbc\xef&lt;7:\xabp\x84\x007(\xfd\xbb}\xbbQ\x1f\xc4\x8f\\3\xafP9\x81\xed;\xd0yJ\xdf\x9a$)\xda\xe2"\xab\x99,\xf9\x0b(Z\xc7\x1b\x0e\xd2\xab\x03\xc8\x00\xf6U\x8b\x8f\x03\xe05\x93TIT\xc6\xe8ZZ\xc3\xd4\x92\x01\xf4\xb1"\xfd|vP\xe3\x8e \xa3\x83\x0ee3\x9d\xde\xcc\xd78x\x00H\xf27\x00\xdb\xa7\x81M\xafO\xfaO\xd5\xefFN\xa79i\xfe\xacT\xa9\x8eH\x01R)4\xf7\xc2\xe2\xbcm\xd9\xc6\x1c\xdc\xdb\x87\xeaSq\xe8q6\xbap\xeb\x13\xab=R\xcc\xf0\xe8\x1a\x91L\xa6\xb2\xca\x9b\xda\xb9P\xe9\x89m\xd2\xb2.\x07r\x91\xc7&lt;\'\x16\x85&amp;\x1b\x8aa\x84DFf\xf5\xe89\xd9T\xb2bXm}\xde\x0eRyu&gt;*I\xaf\xf8\x9b\xa1\xc9R\x9dR\xe5\xadAN&lt;[\x07u\x80\x00\x10,-`;[\xb5\xfd\xef\x8d\x15\x89,\x0f\xfb\xfa{\xdc(!J\x8c\x92\xe8\xfe@\x05\x7fO\xe7\x8a;\xdao\xb2*\xacR\xa5\xd8\xae\x06\xc0dv\xaf\x88Xf&lt;\xdc\xdd\x86c\xccis\xa8\xb9&amp;\xfd1\xec\x93\xdb]&amp;\x13F\xcc\x1b\x88$!\x8d\xd29M\xdd\x94rk\xeds\x94r:\xd8hl\x02\xde\x8d1\x97\x8e\xf8o\xa1\xcd\x9c,\xa0\xde\xdfq\xe9\xfb\xe1{\xa4\x1d@g\xed\x14\xaf&amp;\xb1\x92\xb3\x03\x91\xca\x94&lt;x\xc4\xeei\xf4\xfb8\x8e\xca\xfb\xf7\x1e\x84c\x9bi\xaa\xab\xb0LDH\xdb\xb2X\xce\xc4X\x824 \x83\xf2 \xf9.\xa1\xc4\xf0\xdc7\x89\xb0\x97@\xfbI\x14\x8d\xdc\x10A\x07PA\x1e\x84\x11\xce\xc4)\xe5\xd3gW\xb9#^\xa8\x8bfj\xda\xa5V\xa1\xb4\x176\x0b\xaf\x8d\xaaM\xc0\xf1\x1b\'\xban@ \xf2\x92E\xfb\x82Lt\x86\x13\xc4\x14X\x9e\x1d\x1dNv\xb4\xb8j\x0b\xadc\xb1\xfa\xed\xe0\xb8\x9f\x88x_\x11\xc0q\x89\xa8KK\xb2\x1d\x08\x1b\x83\xa8?-\xfcU7f\\\xe3\x98smbFh\xce5\xa95\x1a\x84\xd7\x0b\xb2\xe6\xcdx\xb8\xe3\x8a&gt;\xaaR\x8d\xcf\xfbcE\xc9\xf0\x13\x19R\x9f\x94\x86\xdbG*S\x8a\x00\x0f\xe7\x8ep\r\xaa\xaf\xaa\rh/{\xdd`\x05\xcb\x9c\xe2v\x03rI&gt;d\xaf\xa2\x11\xb6\x83\x07\xc3\xee\xe2\xd8\xe2\x89\xb7$\xd9\xadk\x1a5$\xe8\x00\x00o\xa0\x00$Vi\xd5\xcaC!Q\xb2\xba~vBO\x99j\xf2\xa1\x1f^yW\xec-\xf5\xf4\xc2\x12Nlb\xb30\xd4\'\xc9}O(\x10\xb4H\xb7\xf2I\x16\xb0\x1flw\x1f\xb1/e/\xe1\x1a\x7f\xcd\xb1V\x01W \xb3[\xa1\xec\xdaw\x17\x1af&lt;\xed\xb0\xd0\x1dJ\xf9\xad\xfeH{q\x8b\x8f\xab\x06\x07\x82&lt;\x9a\x08\x9dw?Q\xdb&lt;llu\xc8\xddr\x83k\x9b\xb8\x8d\x1aW\x12\xb3\x9b\xa8\xb9j\xbb\xfcZ&amp;\\\xa8Np\xd3\xddk\xc1\xa5\xb2\x16\xe2\x95\xbd\x04\'\xce\xa4\xa4~S\xc9 \xdf\t\xea\xfdg^3\x9cW\x13\x94r\x85/-\xa5I\xfc9Y\x82O\xcdH\x1c\xf7\x0c1f\xd2G\xf9\x9dP\xff\x00)\xc5\xe9R+d\x7fgN\xd1\xaf\xea?\x0bv\xe5\xbb\x8fA\xa0\xeaB\xe5\xfaY)#\x8b4\xce&amp;\xc7\xe1\x1b\x9fS\xa3G\x8e\xa7\xc0\xa6;1\xf4\x7f\x9b\xeb9\xd3\xfe\xaa\xd5\xdc\xc3R\xcc\xef\xf0\n\xddd%\xbd\xb7\xfc\xa9BxB/\xfaR\x00\xf5\xb7\xbf^OD\xb4wR\xeec\xc8\x94vS\xbd\xb0_\xa7\xa4\xed \xff\x00\x8d\xb3\x7f*\x87\xb7c\xe8A\xe4\xad\xb3\x83\xa9\xda]$\x87\xb4\x94\x9b\x97;ry\x8d6\xfe4S\xc7\x8c*\x9c\x1b\x1cc\xb3\x8c\x0b\x06\x8d@\xf1\xb9\xd4\x9b\x8dN\xe7^\xabWH\xb2\xa6\xa7t\xf5\xa8Pu\'L\xeb\x92)y\x92\x94\xff\x00\xfd\xadA\x9b\x87\x12\xab\xf1\xdf\x91p\nT\x95\\\x1b\xed) \x91\x8b\x9b\xe8\'\xe2\x83\x03]tbUkQ(\xd1a\xe7\x8a\x1d\xa1\xd6\xa9\xb0\x97\xb5\xb9\x8a\xb5\xdb\x92\xd2{!\x0b\xe7u\xf8B\x82\xad\xc6\xd1\x84n6\xe0\x99\xeb)bt\r\xef\xb5\xc0_\xfe$\x80o\xe0/\x7f\x01~\xaa\xc1\xe0&gt;8\x86\x96\xb2X\xa7wq\xed&amp;\xdd\x1c\xd1qo\x13kx\x9b&amp;\x0f\xacN\xa8#k.dV\\\x85\x9f\x1b\xcc\x19\x89n\x1f\x96\xa5QW\xe3G\xa7\xa4+\xca\x92\xa1t!)6&lt;\x92\xa5[\xcd\xdf\x08m\x1d\xe9"\x8b\x94i\x8a\xa8\xc9eS\xabs\xf7H\x9d9\xe5\x17\x16\xb7\x0f{\xa8\xf7\xeen{\x9c5P\xd3\xd2\xd0\xd2\xc5\r8\xd21\x94y\xf3&gt;\'\xa9\xeaT\x0e#5N%W$\xd3\x9b\x97\x9b\x9f\xeb\xcb\x90\xf0\xb2YS\xba8\x81\x9ag\xff\x00\x13\xcd\xd5\x17\x92\xdaWf\xe3\xb6\xae;w\xc2\xd7$\xf4\xf9\x96t\xfe\xaa\xdd^\x93-\xc2\xf3g\xf59\xdb\xfeq\x8d\xd7L\xebYiGK\x13\\\x1d\xd3T\xe2\xc6\x81\xe2\xab\xe6\x1co\xdc~"m\xef\x8dGc\xa09f\xd3\xe6O\x07h\xdd\x8dF\x8e\x8aC2\xf1\xdc\xb7O\xad\xa1.\xcf\x0e%\xd0,\x89L\xab\xc3y\xbf\xb2\xc7?\xb1\xb8=\x88#\x82\x9fv|\xfa\rI4\xaa\xfc\xb4\x19\x1e \x11e\x04\xecD\xb4\xff\x00\xf1r\xdd\xd1\xeb\xdd&lt;p9\xef\xdb\x8f\x04\xb2\xbb\x0f\x18\xdd\x1c^\xf6=$\xb0\xd5\xcc?\xa8\xdbr\xd3mw\xb6\xe6\xc3N\x9b\xff\x00\x1ex\xfd\xd8v*x~\xba_u7\xfa\xf3\x1d\x1a\xff\x00\xda/\xb0x\xbe\x9bf\x02\xc2\xe5ue\xe6W\xe9S\x12\xa8\xcbP\xde\xd7$(\xfb\xfd0c\x92s\x16\xe8\xbbM\xb8tR\xb73\x80\xbaf\xea\xd0\x9a\x95M\xdc\x81\xb5IH)&gt;\xd8k3&lt;\xc9Qj\xbf"\xf3\xeaSm,\x02\x9d\xd7\x05E7\xbf&gt;\xc3\x81\x8b\xc7\xd8\x0e\x0f\x1e/\xc7\xd1:[\x11\x08t\x96&lt;\xc8\xb0\x1e\xa0\xb8\x11\xe4\xaa\x1f\xf2\x97\x1c\x9b\x02\xf6Y,p\xdc\x1a\x972"G u7\xf0-ii\xf3\\\xca\xbeVm\xf6\xber9Cn\x16\x82\xf7\xf7&gt;\xe4\xf6\xef\xc7\xdb\t\xd7\x1dj+\xea\x8f=\xab\x94\xa2\xdb\x9b\xe6\xdfk\xdb\xdb\xbf\xd7\x1f@\x9b\xf1Y|\xab\x95\xb7e\xd6a\x97\xa1\xc8H\x10\x9dq\x04\x8d\xa5.*\xe0}\xbdo\xfen\xf8\xd9\xa7\xd260\xf7\x83!\xc4%\x97\x03kJ\x17\xfa\xbe\x97\x07\xff\x00#\xcf\xd3\x1b\x19\xb2\xe8\xb4C\x1a\xfb\xae\x94HR\xdfqq\x16\xf2Ue\x04(\xa9D\xf2y\xb7\xd4}\xff\x00\x96\x15t-+\x80\xe6\xd9\xb2$\x94\xad\xd4\x15\xdd\xb5\x1e\x12;\xfbs\xc7\xff\x00g\x18\xe6\x90\xc7\xb2\xdb\xa6\xa4\xed\x8e\xbc\xbc\xd6\xe6o\xe9\xf7O\xab\x0b\x8fT\xad\xd3\x94\xa7\x8b\xed6\xa7c\xb8R\xa7\x10\xa2\x12\x02\xbd\xedpA\xee-\xc1\xc76\x93\xd3\xb6Y\x97\xa7\x15\xb6\xb2]Jl:km\xbb&gt;\xba\xcb\xd2\x02\x1c\x9c\x12\xd3\xe6:\x1cR\x13\xf8\xa8\x05\x85$\xb6J\x00\x0b*\xba\xc9\x01\x0b\xd8\xb5d\x8e\xa5\xc8v$\x04\xc7\x85a\xd12\xaf\xb5f\x84\x02S\x91\xa3]5\xe4l\x84\xe4i\xc9a\x0bvCiPm\x96\x82P\x94\xa4\x0b\'\xdc\xf2\t\xbf\xd7\x0f46"FlC\x85\x11\x08O!&lt;Z\xdd\xff\x00\xfc\xff\x00\xcfH\xd3\x1clhk\x05\x82\x98\x8d\xd2;W\x9b\x93\xfd\x05\xbc\x82RPS\xc2m\xb4&amp;\xfd\xcf\xb9\xc0\x80\x90\x90\xd9O*yIR\xbe\xc7\x18\x96k\xad\xe9+i\x10\xd2\xb0\x9f*y\xb6\xd1\x8d1\x1dIiK\x017Rw+\xb8\xbd\xb1\xe5\xba\x05\xe8\x95\x9a5\xd6\x80\xc2@\xda\xa4\x9bzZ\xdc\x7f\xa6\x13Uv\xa3f:\xb2\xa8\xd3\xe3!\xe8\xee#\xce\xd3\xe9\xdc\x92\t\xf6\xf7\xe3\xf6\xef\x8f.\x85\x951\xba7\x80A\x04\x10u\x04\x1d\x08&gt;\x07\x9a\xc9\x05C\xe9\xe4l\xb1\x92\xd74\x82\x086 \x8b\x10A\xe4GU\xce\xaa6\x88.\x9a|\x95\xa9\xf4\xc4Yd-\xdf2\x94;\xa4\x92{\x9d\xa4\x02{\x93|\x18\xf9\xb5\xc4\xb4P\xe1\xdcCWK\x1f\xc3\x1c\x8fh\xf2\x0e /\xac&lt;#\x88T\xe2&lt;-EU!\xefI\x13\x1c|\xdc\xd0O\xdd\x7f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>802281</v>
+      </c>
+      <c r="B22" t="n">
+        <v>72016</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Raphael Laruccia</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xdb\x00C\x00\x03\x02\x02\x02\x02\x02\x03\x02\x02\x02\x03\x03\x03\x03\x04\x06\x04\x04\x04\x04\x04\x08\x06\x06\x05\x06\t\x08\n\n\t\x08\t\t\n\x0c\x0f\x0c\n\x0b\x0e\x0b\t\t\r\x11\r\x0e\x0f\x10\x10\x11\x10\n\x0c\x12\x13\x12\x10\x13\x0f\x10\x10\x10\xff\xdb\x00C\x01\x03\x03\x03\x04\x03\x04\x08\x04\x04\x08\x10\x0b\t\x0b\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\xff\xc0\x00\x11\x08\x00\x93\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x00\x06\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x05\x06\x07\x01\x04\x08\t\n\xff\xc4\x00A\x10\x00\x01\x03\x03\x03\x03\x02\x04\x04\x03\x04\x07\t\x00\x00\x00\x01\x02\x03\x04\x00\x05\x11\x06\x12!\x071A\x13Q\x08"aq\x142\x81\x91\x15#Rr\xa1\xb1\xc1\t\x163Bc\x92\xd1$4Cb\x83\xa2\xb2\xe1\xf0\xff\xc4\x00\x1a\x01\x00\x02\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\xff\xc4\x00*\x11\x00\x02\x02\x01\x04\x02\x02\x01\x03\x05\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x11\x04\x12!1\x05\x13AQ"\x14\x152#aq\x81\x91\xb1\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf54\x1c\xd4w \x054\xf2\x00\xa4\xd3\xceP\x02\xa4\x00\xa0\x01@\x15\x87]\xbe \xf4\x17@4\xdbw\xfd`\xfb\x8f=!e\xb8\x90c-\x1e\xbb\xea\x1d\xf0\x95\x11\xf2\x8f*\xec&gt;\xf8\xaa\xe7=\xbc.Yd*s&lt;\xf7\xd6_\xe9%\xeb\xbe\xb3\xbc\xad:\x11\xa8zn\xdc\xa5\xecj&lt;X\x89\x92\xf6\xdc\xe0\x158\xe2N\xe3\xf6\t\x14\xb6NK2x\xff\x00\x05\xaa\x10K\x92%\xd5?\x88\x8e\xa9\xea\x1bS6N\xa4\xea\xc9WD8=v\xe1\xa8\xb6\x141\xfdA\xbc~\x99\x1cR\xf5\xbf\x97\x92i\xc5t\x86\xcd\x0f\xd4\xa96\xab#B\x16\xf6\xddm\xe4\xe2R\xd2\xb6\xccU(\xe4\x05-#\t\x07\xc6A\x19\xf2;\xd4eV9C\xdc\x9f\x0c\xed.\x83\xfcj2\x87\xff\x00\xd5\x1e\xb3\xccCk\x1bD+\xca\x13\x90\xbe?\xd9\xbc\x07;\xbd\x94\x07&lt;g\xde\x88\\\x97\x0c\xa6ue\xf0u\xdd\xb2\xebn\xbd\xc1f\xe7i\x9a\xcc\xb8\x92\x13\xb9\xa7\x9aXRT&gt;\x84U\xe9\xa6\xb2\x8aZk\xb3j\x98\x81@\x02\x80\x05\x00\n\x00\x14\x00(\x00\xa1@U@\x1b\xbdJ- \x05I4\xc0\x14\xc0\x14\x01Zu\xf7\xafZ?\xe1\xf3C\xb9\xac5Z\x94\xfb\xae\xa8\xb1\x02\x03N%.\xcb\x7fi;F\x7f*\x00\x19R\xf0v\x8f\x04\x90\x0ce,\x13\xae\x0eo\x07\x8b=r\xf8\x80\xd4]S\xd6S\xb5\xde\xb3\x98\xb9\x13.+Q\x87\x0bySP\xa3\xe4\xecm!]\x92;\x81\xf5\xc9\x194B\xbf\x9f\x92\xec\xed\xe1\x15{\x1a\xf6R\x1d\xf5\xd0\xeb\x8d+\xfe\x19\xc1\x00x\x1cqZv\x15\xfb\x7f\xb0\xfd\x0b\xaa\x92\x04Wb\x16\xa4\xba\x87\x93\x87\x0b\xce\x07\x02\xbft\xd4=L\x14\xd3%\xf6\x8e\xb9i\x8bV\x99r\xd16\xd2\xeb\xebq\xb5\xb6\x95\xb0\xeaT[\xcf\x80\t\n@\xed\x90\tI\xf2*.\xa6\xd1%$\x99\xa5o\xd7\xb6\xcb\xf9D$\xdd_/\x04\x842\x95\x8d\xbe\xa2\x7f\xa4\xe7\x80\xa1T\xce\xa4\x91g\xb13\xbb&gt;\x01&gt;\'\xa4C\xd5\xe8\xe8\xde\xb5\xba\x04\xc5\xbbG\xc5\xa1np?\x16\xd0\xfc\x99\xcf\xe6q\x1c}Ki\xc79\xccb\xb6\x7f\x82\xbb\x12k(\xf4V\xae(\x05\x00\n\x00\x14\x00(\x00P\x00\xa0\rt\xb9\x93U\x00\xa0_\x8a\x000_\xbd4\x85\x93;\x85O!\x93\x0e8\x86\x9bS\xae(%\x08\x05JQ8\x00\x0e\xe4\xd3\xc8\xfb&lt;O\xf8\xc4\xf8\x84\xbau\xc7\xaa\xd79Qf8,\xd0\x1er\xd7jmD\x0c0\x95+\x07h\xe3*\'q\xf3\x8c\x02MW\x05\xb9\xeef\x84\xb6\xae\x0eG\xbdOT\xfb\xbb\xee \x92\x9d\xdbB\xbd\xf1\xc7\xf9V\xd8\xae\n\xe5\xc8x\xfaz\xf1q\xe2*W\xcf\x80*\x12\xd4S\x07\x892\xe8h\xed\x9a\xcaC\xdd\xa7\xa5\x1a\xa2{\xa1(\x82\xe1\'\xb0\xdaj\x8f\xd7S\x8e\xcb\xff\x00l\xbd\xfc\x0e\xea\xe8\x96\xb8l\xe5\x16\xa7\xfb\xf1\x96\xcd%\xaf\xd3\xfd\x92\xfd\xaa\xe1T\xf4O\\\xb5!\xb4=o[\nP\xcaTN\x00\xff\x00\xa5\x1f\xae\xa2\\dq\xf1\x97E\xe7\x04\xa7E]\xb5\x15\x9bQ\xdb\xed\x13\xe2\xbe\xd5\xd6\x0c\xc6\xd5\x15\xf6\xf3\xbc\x90x)\xc7$\x83\xcf\x1e\xd4\xe6\x95\x90n,\xa2\xc8J\xa7\x89#\xdd\xfe\x9c\xdd\xae\xf7\xad-\x02e\xf9)E\xc9\xb8\xed\xb19\xb0A\xd9))\x1e\xa88\xe3;\x8f8\xf3J\x0f+\x93$\xbb%\x15" \xa0\x01@\x02\x80\x05\x00\n\x00oB\x8e\xeeMT\x02\xc9Y4\x00}\xe7\x81M\x11a\x81\xe34\xc4G:\x9c\xd4\xb9=6\xd5\x0c@I2\\\xb3MK@=\xe8\x9d\xc5\x95\x81\xf3\xff\x00\xbb\xf7\xf1M\xac\xac\x16E\xe1\xa6|\xef\\\xeej\xb7]\xdcI*Qm\xd2\x15\x9e\xe7\xc95dxE\xf9\xc9\xa3\xa64\x9c\xcb\xf4\x947\x14\x1c\x17y*\x1e\x01\xa8\xea5\n\x88\xe5\x9at\xbaw{\xe0\xe8\xbd\x11\xa1\xa1\xdb\xdb@\xd8\x1cW\x04\x92;\x9a\xf2\xda\xadK\x94\x8f]\xa7\xd3\xc6\xb8\xa2\xf5\xd2:b\x1aT\xd3\xe2#y\x1c\xf6\xe2\xb2+[4\xca)&amp;\xcb~&amp;\x97bTU!6\xa0\xe6\xdf\x9b?.0G\xd6\xaf\xcb(\xc8\xc5\xa9t\xac\x17\x1cm\x0e\xc1J\x14\x9c\x83\x84y\x15\\\xecq/\xae*\\\x94\xefYzB\xd8\xb3C\xd6\xd6t\x96\xa5\xd9\x1fK\xce\x14\x0f\x99l\xa9XW\xecpG\xeb]/\x1d\xac\x93\x9e\xd9tq\xfc\xae\x99m\xdd\x14z9\xf0\xc3u\x9d\x7f\xe9T\x1b\xec\xd5\x87\x05\xc5\xcf\xc40\xe8X&gt;\xab~\x93h\xdc|\x85nB\xb7\x03\xd9Y\xc6F\rw\xa2\xb0\x8f%g\xf2e\xb7L\x80(\x00P\x00\xa0\x01@\x02\x80\x1a\x12\xbej\xa0\x14J\xcex4\x00\xa8s\'\x8f\x02\x9a"\xc5\x02\xce)\x88\xd4\xbeBE\xde\xc5p\xb4\xb8\tL\xd8\x8fF!=\xf0\xb4\x14\xf1\xfb\xd3\xc98\xbeO\x9d\xfb\x9d\x81\xf3\xac\xa4\xdb^k\x0e5!\xd6\x96\x9d\xbc\xe5*)?\xe1D\xe6\xa1\x1c\x9b+\xad\xcd\xe0\xb8\xf4\x86\x8f\xb5\xd9\x90\xd2b\xc7Sd\xa5%[\x8ey\xfdk\x87\xaa\xbev\xf2\xcfI\xa3\xa65$\x92-\x8b\x15\x99\xa2\x84\x96\xc8\xcf\x90|W"\xce\xf9;pK\x05\xb3\xa2 6?;\xad)\t\xf9H&gt;3\xe6\x94{\t\xfd\x16\xa5\xb1,\xc1}C!M\x16\xd0\x9c\x95v8\xe2\xb5\xa4\x8cM\x08\xde\xadv\xf9\xb2\x0b\xed\xba\x12\x9d\xa0\x01\x9f&gt;x\xfb\xe6\xa9\xba\x19\xe4\xba\xa9\xe3\x829|\xd3\xe6\xe1i\xb8\xdaV\x8d\xcd\xcba\xc6@\xfe\xd2q\xfet\xf4\x8aP\xb3v\n\xb5\xd8\x9dx//\x81\xa4&gt;\xc7B\x9b\xb7&lt;0\xa8\x17\x99\xd1\x87|\xf0\xa4\x9e\x7f\xe6=\xab\xd5\xd5-\xd1L\xf0\xb7E\xc2xgBU\xa5@\xa0\x01@\x02\x80\x05\x00\n\x00e\x07\x9a\xa8\x03\x8f\xbe(\x03%X4\xd1\x16)\xeay\xc1\xa7\x94!V\xdc\t\xda\xa3\xd8\x10i\xa1\xa3\xc5\x0e\xafh\xa1\xa6\xbe+u\xae\x9fv:\xb6\xb1\xa8f\xa9\xb0\xa1\x82[ue\xd4+\xed\x85\x83Y\xae\xfe\'SI\x97$oj7\xd1\xa5-B\xee\xfcu\xbeJ\x82\x1ba?\x99J\xfb\xd7&gt;4{\xa5\xb78;\x7f\xa8T\xad\xc5k\'\xae\x9a\xee\xd8\xeb\xaeG\xb6\xfa-\x1c\x94\xb7\xe8\xe7\x8fm\xc7\xda\xb5\xd5\xe3(\x9a\xc4\x99\x8e~[Q\x17\x95\x1e\x07m-\xf1U\xaa\x92\xeaX\x9bfK@\xa8nu*P8\xfbv\xaa.\xf1P\x8f1e\xf4\xf9\x99O\x89\xc4\xbb^\xeb\x86\xa1\x1a&gt;U\xe2$i.!\r\x92\x14\x94)]\xbc\xd6H\xd1)Oi\xd3\x96\xa2\x11\xaf{)\x99\xbf\x15]a\xb9\xcbv\r\x91m4\xc2\x01qk\x1c)\r\x0eT\xa2\xaf\x00w\'\xc5u\xea\xf1\xd4\xa8\xe6\\\xb3\xcf\xdf\xe5\xac\xdc\xd40\x91b\xf4\x97\xab}I\x8bwa\xe5_\xbf\x8a3!\xc4\x87\xa10\xd3\xf3V\xe6\xe3\x8c\x04\xa9\x00d\xf8\xc2\x87\xde\x9d\xfaj\x9cv\xc1a\x90\xa3Yk\xcb\x93\xc9\xdc\xff\x00\x0c\xdf\x10=-\xb2\xde\xa6\xf4^\xfb&gt;\xe7\xa7\xf5\x8d\xdfPH\x95o\xb3\xdd\xac\x92\xe1&lt;\xf3o4\x87\x10F\xf6\xf6\x8d\xc1\x0b#$d\x0e;\x8a\xb6\xaa\xe5\\0\xcen\xa6\xcfe\x9b\x8e\xaf\x07#5iI\x85+n3\xe6\x93bo\x06A\xcd\x08\x10)\x8c\x14\x00(\x01\x8bv*\xa0\x0c\x85\xe3\xcd\x00d\xa8\x13\x93RDX\xa0X\x1eh\xc0d$\x89\x91\xa2GrT\xc9\r\xb0\xc3\x08.8\xeb\x8a\tB\x12\x06J\x89&lt;\x00\x07\x9a:\x0c6\xcf=\xbe+4\x1e\x87\xd4\x1f\x10\xd6\x8e\xad\xda\xba\x97\xa4cXn\xf1\x18\x17\t\x9f\xc4[x\x89,\x7f%M\xa5\xa6\x89Z\xd6\xa4\x16\xc8\xe0\x01\xb5D\x91\x8a\xa6{l\xe3\'F\x99J\x9eZ\xe4\xe2\x8dc\xa9\xf5\x86\xa2\xd6\x97\xdd=.\xe4\xa6\xec\xf6\x99\x0e\xfe\x0c\xc3` \xcbg\xd5R[p-@\x9d\xaaJA\xcf\x1d\xfcQ\x1a\xea\x8f\xe4\x89{\xae\xb1\xe2K\x04\x02N\x9c\xb9\\^J\xbdu\x17\x94\xe6\xd2\x97\xdd;B\x7f\xabr\x89\'\xea*\xe8[\x1a\xfbEV\xd3e\x8d`\xb0\xa2i\'\xed\xb1\x96\xd6\x9f\x96\xa6Y\xf5\x10\xe1\x90\x87\x16\xdb\xca \x10R\x08 l\xe78 \xe0\x8c\x83T\xce\xf5&gt;\tF\x89C\x96:t\xa7\xe1\xd3^u\xae\xc5\xaa\xafV\x1e\xa3&amp;*\xed\x82G\xa1\x06B\xe4-W\x05\xb4w\x14e*\tN\xee\xd9 \xf29\xa4\xf5T\xd3%\x16\xb9f\x8a\xb4\x17j\xabvn\xcaLbk\xa7\x08m\xab|\x9bt\xe91\xdd\x98\xc3rZ(k*\t\xdb\xf3\'\x92\x02\x86IJ\x87\xdc\x1a\xb9\xea\x92\xe4\xcbv\x86SN\x12E\xe7\xd1\x9e\x91\xa2f\xa4\xb6\xddm\x11\x1d\x82\xdc/I\x0bk\xb8{`\x1b\x9cP\x04\x84\xa8\x91\xd8q\xda\xb1_\xa9Rf\x8d&amp;\x8dS\xdfGZ\xf4g\xe1\xebB\xc2\xf8\x8b\xd1\xba\xd2\\\xbb\xbe\xa4\xba\xb5\xa3gj\xa7f\xdd\xe5\x17\x96\xd5\xc2L\xd6Z\x8e\xa4\x8e\x00\x08o\xf1(H9\xc63\xc9\x00\x8e\x9cf\xddxF\x0b\xf2\xa6\xd7\xd1\xda\xe0`\x01\xedQ*0\xa0\x0f\x04dRbbAJe\xc0\x93\xcbJ\xf2O)?\xf4\xa4\x98\x93\x16\xa9\x12\x05\x00\n\x00\x8e\x05\xfb\x8a\xa8\x03\xa5Y\x1cP\x01\x82\xbd\xe8\xc8\xb0\x1b\x7f\xda\xa4Dj\xd5\xfa~&amp;\xaf\xd2W\x9d+-\t[7\x8b|\x88+IV\x07\xf3\x1b)\x1c\xf8\xc1 \xe7\xe9Q\x9c\\\xe2\xe2\x8b*\x9b\xaejk\xe1\x9eB"+6\x0b\xc4f5u\xb0\xc7\xbc[\xae\n\x8d-\xb7\x1b\xfeb\x9e\x8e\xbc,/\x8e\x08\xdb\xdf\xb7\x15\xe7\xe9\x94\xaa\x9e\x1f\xc1\xef\xf5\xd1\xaa\xc8\xab \x96\x1f&amp;\xdfQlV\xd75T+\xc1N\xd6gf\x1b\xea\'\xb2]\xc2\x9b\'\xff\x00Q!9\xff\x00\x89[}\x9c`\xe3\xaa\x94\xe4\xa5\xf0\'\x17\xa7V\x1c\x85\xb4\xfa\x14\xe0?(&gt;\xf5J\xbf+\x96k\x8e\x96"z\xc2\xcfo\xd3v\t3\xdc^\xdf\xe5\x9c\xb8FG\xd0${\x93\xc0\x1eI\xa8W\')%\x90\xba\x98B-\xa4X\x7f\x07V\xc9\xbaj44K\xd9\r\xd9I_\xae\xdb\xa7i\x0e/*Q?PU\xfd\xd5\rl\xf3\xa8\xdd\xf4k\xd0\xd5\xe9\xd1\xa8\xfc\xbeGi\x9aF\xcd\xa2\xf5-\xd3F\xea\xbbyv\xc8\xf4\xf7\xae\x96\x89\xe9ijLVd-N-\x85)\x00\x94mp\xabj\xbf)J\xb6\xe4\x14\xe0\xd8\xa6\xec\xe9\x99\xfdn\x13m\xae\t\xa5\x9bWYt\x8c5\xc1\xb15\r[\xd3\xc4\x84;\xea-@\x8e\xc1(\xca\x89\xfb\n~\xa9\xe7,\x8d\x9b\x1a\xe3\xff\x00\x0e\x99\xf8R\x856\xe9o\xba\xeb\xdb\xb6\x11!\xd8\xb0t\xf4\x18\xe4\x02\xb6 \xc4\x0e:\x14\xbcv[\x8fJye&gt;\x12\x1b\x04\xe4+\x1d\xba\xe4\xb6\xe1&lt;\xe0\xf2z\xc5\x8b[\xc62_\xfb\x95\xefS\xc9\x90\x1b\x89\xf3I\x81\x83\x83\xc2\x86A\xe0\x8a@a\xa2\xa4\xff\x00-c\xb7\xe5&gt;\xe3\xeb\xf5\xa0\x052h\x1eA\x93RA\x924\x0f=\xea\xb2B\xc9 $r(\x00\xabXI8\xef\x8ai\t\xb0\xa5\xdc\x01\x8adB\xa5\xee\xfb\x8ei\xa1\xa3\x86\xfe;z\x198jX\x9dj\xd2m)-Ki\xd8W\xa6P\x8c\x82\xf6\xcf\xe5\xbeq\xd8\xad)\xc1?\xd4\xd8\xfe\xaa\xe5\xeat\xef~\xf4w\xfcn\xb1\xce\xa7\xa7\x9b\xeb\xa3\x98"\xdf"\xeak\x0f\xe1\xa7\x04;"0\xfc;\xc8)\xf9V\x8f\x1c{\x11Yg\x94\xcd\xd4\xcda \xd0\x0b\x9e\xaa\x94\xab\xbd\xcd\xb2x\x18}*?\xba\x90O\xf7\xd2\x95\x89v\x8d\x91\xaa2\xe9\xbf\xfa5\xf5\x02\x0cH\xd6\xa8\xd7\x17S!\xe3\x1d\xe4/\xd6\x92\xfa\x9dP\x00\xe4\xed\x04\xedI\xfe\xc8\x14B[\xf8H\x9d\x95m[\xb2@\xec_\x10H\x89r\x9c\xd4\xf9I[\x1b\xff\x00\x90\x98\xe1jV\xc1\xdf\x7f\xd7\xedZ\xed\xf1\xd2\x9cr\x91\x86\x1eV\x11{d\xf8.\xfe\x9a\xf5b\xe7\xd5h\xbf\x8eoU\xc7jU\x92J\xdb\x89\x10\xa4\xa1\xff\x00\xc2\xac$d\xa9x\xc9\xdc\x01\xc0\xfd+\x1d\xbayR\xf0\xcd\xfa}Uw-\xc8\xb5\xd2\xe5\xe6z\x99\x8b&gt;J\xdek\x1b\x94\xbc\xf6\xc7#5\x18\xf0;\xed\xc2\xc2;\x0f\xe1X\xb6\xad\x0brSA "\xe6X$+9)e\xb2x\xf1\xf9\xab\xaf\xa3X\xaf\xfd\x9eG\xc9?\xebc\xfb\x17F\xecV\xa3\x9c\r\xdfj\x00\x1b\xbe\xb4\x01\x85\x1d\xc9\xfc\xc5?Q\xe2\x800\xc2\xdc,#\xd4R\x94\xacrT\x9d\xa4\xfdH\xf1@\n\x05q\xde\x80#@\xfbTI\x80\xb8\x00\xf7\xa3\x02\xc8\x9a\xdf\xc7\x93\x8a\x91\x11\x13 \x13\x9d\xd4\x00\x03\xe3=\xe8\x01\xa7[i\xa8z\xdbG^4\x8c\xe7\xcb\x0c\xde!;\x11O\x04o,\x95\x0f\x95\xc0\x9c\x8c\x94\xab\n\xc6Gn\xe2\xa38\xee\x8e\x0b+\xb1\xd7%#\xc7\x8doj\xb9t\xa3^j\r%pp&gt;\xbbD\xf7`\xbc\xb4\x02\x90\xbfMX\x0b\x00\xf8#\n\xc7\xd6\xb9\x93\xaf,\xf4\x15Z\x9a\xdc\x87Ke\xe6+\xf1\x7f\x1c\xa5\x8d\xa0eY?\x97\xefY,\xad\xf4\x8e\x8dWF+,\xabz\x9d\xaf\xee\x9a\xb6*\xad\xb6\x95\x94\xc0l\x84\xe1*\xe5j9\xc6G\xb7\x15\xbbI\xa7\xd8\xf7L\xc5\xab\xd5\xca\xd5\xb6\xb2\xbd\xb2\xe9\xcb\x8cE\xaeB\x98Ay\\\x04\xfa\xa9I\xe7\xbfz\xe9J\xe8\xfd\x9c\xf8h\xack)\x12\xa8y\xb4\xde\x179\xbb\xa2\x18R\x82\x1c{\xd1w\xb2\x80\x07\x03\x1c\x9c\x1a\xc9&lt;XiP\x96\x9f\xb3\xa8\xba}\xd5h\xadi\x15\x86\xee"k\xad\xa9-GV&gt;udr\x00\xcf\x8c\x1f\'\xfck$\xaa\xc4\x8b\x96\xa5\xca8\xc9\xe8o\xc1\xdci\x11\xba)\x0eT\x90\xe0\\\xfb\x84\xc9i\x0bN&gt;E9\x80G\xb8\xf9O?\xf4\xad\xfau\x88\x1c=l\xb7[\xfe\x8b\xbbvFM^d1\xb8P\x00\xc8\xa0\x0c\x15q\xc5\x00\x11\x0e()IR\xbc\xe4}\xa8\x00\xfe\xa5\x00GB\xb1Q&amp;&amp;\xeb\xc1\x1e{\xd0$\xb2h\xba\xf6U\x9d\xd4\t\x89\x07\xbe\xd5$!T9\xc04\x00\xaa]\xfdh\x03\xcd\x1f\xf4\x89h\xf8\xbas\xadI\xd4mlJ5M\xad\x99\x8a\x1b\x81!\xf6\x81e\xc2G\x8d\xc9Cdg\xdb5\x96u\xf3\x94u4\x92\xc40\xce+\x9f\xac\xa4\xb1\x16\\6d\x14\xa1\xe4\xa9\xbcg\x18\xe3\xfcj\xca\xf4\xfc\xe5\x93\xb3Q\xf8\xe129\xa7\xee\xcc\xb5%nKu^\x88O\x83\xc9&gt;\xd9\xab\xe7S}\x14\xd3tS\xcc\x89\xac\x1dQ\xa3\xa36]~\xc4%\xa58\xcf\xa8\xe1\xc7&lt;\xf7\xf1Y%\xa7\x9f\xcb:\xb0\xf25\xc1ch\xfb?Y\xd8\x1d\xb7\x07\x98\xd3\xf1#\xb4\xe9\r8\xd3h\x1b\x8aH\xce\t\xc7\x00\xd1]/yN\xabW\x1b"\xdcF\xcd%\xa8M\x96[1P\xaf\xfb/\xae\x17\x9c|\xc1&lt;\xe4\x01\xee9\x15\xaet\xf1\xc1\xccV\xf2{\xa1\xf0\xfdg^\x9f\xe8\xa6\x8b\xb5?\x1dl&lt;\x9b&lt;w\x9em\xc0B\x92\xe3\x83\xd4P \xf3\xddu\x08Gj\xc1\x9e\xd9\xfb&amp;\xe4X\x05d~R*EF\x03\xa7\xcf4\x00\x0b\xa7\xc6\x05\x00\x15N\x12rh\x015)&lt;,\x9d\xa5&gt;s\x8e&gt;\xb4\x00b\xe1\';\xa8\x02&lt;\xa9\x05\'\xb0\xe6\xa0\xd93BT\x9e{\xd2\xc8\x1a*\x90?\xa8R\x00\x07\x81\xec\xaa\xb1tE\x8a\xa1\xde\xd84\x98\x88\xefR\xb5\xeb:\x03E\xdc5*\xd0\x95\xbb\x1d\xa5z)&lt;\x82\xb0\x92r}\xc0\x00\x9c}\xaa\x13\xb3b\xc9mU\xfb%\x83\xc8=o\xd5=K\xd7\x0b\x1e\xaa\xd6W\xb9\x8a\x95%\x9b\xa2\x1e\x8a\x14\xa2T\x966\x94\x94\xfd\x069\xc0\xfa\xd6x\xe66~_\'S\xd7\xfd?\xc7\xe0\xe6\xdb\x93\xabS\xa4\xa7w\'\x9a\xebE\xe1\x1c\x99v"\xc3\xcaJq\xefR\x03}\x96\x9f\x93\x1d[\xd5\xf2\xa0\x83\x81Pq\xfb$\x98\xff\x00`\x9c\xed\xa5\xf6\x8a\xddm\xe4\x14zjm\xfe\xdbOa\xfa\x13\x91\xf7\xa4\xd7\x05\x91\xc2\xe4\xb8\xfe\x1b:kj\xea\x87_tN\x8d\xba&gt;a@\xba\xdc\x1b\\\xb5\xb8&gt;R\xd2r\xb5!?U\xec(\x1e2\xba\x94\xe6\xa3Y\\c)O\x83\xde&amp;"\xb4\xd6\xd8\xcc\xa04\xdaP=$\xa7\xf2\x84\x0e\x02G\xd8b\xb2\xa6A\xa6\x1c\xc3w\xc2\x93L\x88UD|\x0e6\x9f\xb5\x00 \xad\xe88Z\nO\xd6\x80\x13.\x00{\xd0\x06\x14B\xc6\x15\xc8\xf6\xa0\x0c\x05\xa9\\\'\x92;\xd0\x04Q\xe9\x1b{UD\xc6\xd9R2\x08\xcfz\x00\xd5\xf5x\xf1@\x04z|x\x8d\x97\xa4\xbe\x86\x92;\x95\x1cS\xcaB\xc3l\x81j&gt;\xa7\xcc\xfch\xb4i\xfd\xb1\xc9\x04\xaec\xa9\xdcR\x07\x94\xa4\xf1\xfb\xff\x00uQ+\xf0\xf6\xe0\xd1\nV2\xca\xe7\xaa\xd2n\xd7\xcd\rw\xb7\xca\xbdK\xb8:\xf4gB=U\x03\xb0\xa9\x04``\x01\xed\xd8UvX\xe5\xc34UZ\x8b\xe0\xf3?\xa4)6\xf8\x17\x0b4\xcc\x0f]\x08Z\x92Ob\n\x92\x7f\xbc\x1f\xda\xa9\xd5\xcf\x12L\xec\xe8\xa0\xb6\xb1\xafX\xf4\xc24\x87\x97*\xca}\x07\x14J\x8a\x15\xfe\xcdG\xe9\xfd5\xa7O\xe4p\xb1a\x8bW\xe3\xb2\xf7VV\xf7-7y\xb4-I\x9b\x05\xd6\xd2\x93\x8d\xe0nA\xfdEta|,\xfe,\xe5YE\x95&lt;I\x1a\xf1\x14\xfb{\x82A\xca\xbc\xd5\x8eD\x14e\xf4Kt\xee\x92\xd4\x1a\x9eK,\xc2\xb6&gt;\xe3\x8b\xdb\xf3\x96\xcaP\x91\x9e\xe5G\x80*\x8b5\x15\xd2\xb3&amp;]^\x96\xdb\xa5\x88\xc5\x9d}\xa1t\x0c.\x99\xdb4&gt;\xae\xb7\xb9\xebj\x0bv\xb4\xb3\xbe\xe4\x81\xc6\xf6\xddt\xb0\xa6\x92?\xa3\x9f\xd4\x92Mq\xa7\xafw\\\xa2\xbf\x89\xdd\xafE\n*\xe7\xb6{\x0c\xcf\xf3"0\xf8$))$~\xc4WO\xbe\xcf7\x8cpa\xb9i#.\xa9(\x03\xba\x94p?\xbe\x9a\x93D0$o\r\xa7rY\x8e\xeb\xe4yN\x12\x8f\xf9\x89\xc1\xfd3MK\xec6\x81\xa7\xe7NB\x8a\xa1\xc6H\xec\x07\xae\xa2\xaf\xdff*Y\x16\r7\x92\xe2\x16C\xad)\xbcxV?\xcb\x83@\x82z\x9fZ\x00Idz\x85iQJ\x88\xc1!X\xc8\xfbP\x046K\xf8\xe0\x1a\xa8\x98\xd3:zX\xc8)$\xfb\x9e\xc2\x93x\'\x18\xe4\x8e\xdc.\xf7\x07U\xe9\xb2\xe6\xd1\xec\x9e\xf5\x072\xc5\x01\x86T\xd5HY\xfcZ\x8aJ\x07\xe7qX\x1f\xb9\xa896MEt@5R\xd5\x1e\xf3\x1aKn\xa0\xc7\x94\xb42\xa7P\xa0BI x\xfb\xd52e\xab\xa32\n\xdee\xd6\x1e\'\xe6II\x07\xc1\xa8\xa1\x9ey\xf5oHM\xe9\'W.\x0c\x96\x94-7u\xaat%x\xd8\xb5\x12\xb4}\xd0\xb2\xa1\x8fb\x9fz\x8e\xa6Jp\\r\x8e\xa6\x8aj\x0f\x97\xc1\xbe\xd3\xcd\xcfl-$\x10q\\\xf6\xf0u6\xee\x0e\xcd\xad\x87\x14R\xebIRH\xe4\x11\x9c\xd1\xedi\xe7"t\xee\xed\x0e\xb6\xfbU\xa9\x97\x03\xab\x80\xc0\xdb\xdb\r\x8f\x14\x9d\xf3\xcf\x0c\x94t\xf0_\x04\xa6\xc8\xc3\x93f%@\x10\xday&gt;\xc0U3\x9b|\xb2\xe5\x05\xd2-\xcd\x05\xa2\'k]S\xa6\xd0\x16U\n.\xa0\xb7&gt;\xb6\xb1\xd9\xa8\xeb/\xa9\\\xf1\xca\x92\x94\xf1\xefVh\xe5\xbe\xe5\x1c\x19umWT\x9b==\xb6\xabu\xb5\x80\xa3\xce\xcc\x11^\x90\xf1\xa2+m\x90\xe2\x9c(\npq\x95s\x8f\xb7\xb5\x00"\xe2\xf00jbK\x00\x0f\xa9\xa6\x96[V\x0e\x0f\x14\x9eD\xd1\xaf\x1e\xee\x8b\x8c5\xa5D\x12\x80H?l\x1f\xf0\xa2/\x8eH\xb5\xc8\x8e\xff\x00cS"\x14\xaf\xda\x80)\xf9\xfa\x86l\xc0\xa0\x1c1[\xec\x12\x8cz\x84}U\xe3\xec?z\xa5\xb3Db\xbeFE\xa5\x87\x97\xbd\xd4\xfa\x84yY*\'\xf7\xcdBR\xe3\x05\x89`\xd3~;\n%b;Y\x1d\xbeAU2Hk\x93\t\xb7\x92v\xa1)X\xe4dg\x9a\x89!\x8e\xf5mM\xf2\xd5&amp;\xca\xf3\xa9\x8f1H&amp;+\xcb\x07j]\x1c\xa4\x9cx\xce3P\x91%\xd1\x99P\\\x93m\x89{`e2\x98C\xcbJy\x00\xa8eX\xfb+p\xfd*#\xec\xaa:\xdb\xd2x=Y\xd1\xee\xda\x12\x1bj\xed\x10\x996\xc7\xd7\xc0C\xc0r\x85\x1f\x08X\xf9O\xb1\xda|Usi\xac\x17Sb\x84\xd3\x97G\x1e\xdb\xe2\\\xec3\x1d\xb3\xdd"&lt;\xc4\x88\xae\x96^i\xd4\xe1m-\'\x05*\x1e\x08\xacS=\x05R\xca\xca%\xd0\x1bm\xe1\x91\xdf\xb5gl\xd6\x91\xbe\xd4\x07\x16\xe0B\x13\x92MBV}\x12Q\xfb-\x1d\x15\xa3\x1c\x9c\xe31[J\x86\xf2\n\xf0;\x8a\xad\xc9\xc8|G\x93\xb1:\x15\xd3\xf8\xb0\xe3~9L\xe1\xd6\x16\xda\x9bI\x1f\xf8E*!C\xeeG\xfe\xca\xec\xf8\xba\x1cS\xb1\xfc\x9es\xcbjT\xa5\xeb_\x07J\xdb\x7f\xee\xa9\x1e\xc0W\\\xe0\x87\x94\xd6\xc4)\xee\xdcs@\r\x8asy\xc0501\xea\x02\x92\x92{\xd4X\x10\xe8w_\xe1\xae\xdd\xed\xea\x18)ikA\xfa\xe0\x8cR\x13C\xbd\x96\xe6\xdd\xc6(RW\x95#\x85~\xd5dz+}\x9b\xe5^\xd4\xc4s\xfc\xa9\x01\x0e\xfc\xea\xc0\'\xf4\xac\xae_F\xd4\x85v\x05\' \xe4\x8a\x80\xc2\x02\x1emM\x81\x85\xa6\x80\x11[!\xd1\x85\x0eEG\x03\xc8\xcf{\xb7\x87a\xbc\xe1I\xdc\xda\n\x81\x1fJ\x807\x95\x82%\xa3\xb5\xc4{P\xfe\t|\'\xf8j\xd4KO\x04\xe5QT\xa3\x92\x08\xee[$\x92|\xa4\x9c\x8c\x82@\x83%\x05\x85\x82Ix\xd3Kd\xa6d,:\xc3\xc3\xd4B\x9bPPP&gt;A\x1c\x10j\xb7\x16\xc7\x92\xbf\xd6]\x12\xd2]D*\xb9\\-\xea\x8du@CFl\x7f\x95\xc2\x8f\xca\x92\xa1\xd9{r8P\xed\xc6G\x04F\xdaw.\x11\xaa\xadT\xea\xe9\xf0s\xf6\xb1\xe8\xe6\xb5\xe9\xd4\x90\xbb\x9c\x00\xe4%9\xb1\x13\xe3\xe5L+\xdb&gt;[?Ec\xe8Ms\xac\xaeP\xed\x1d\xfd&gt;\xa6\x17\x7f\x17\xc8\xe5\xa4\xac\x8dH}\x1e\xaar\xe6GqY\x9a\xe4\xd9\x93\xa1:k\xa6\x8b\xb78\xb6\xd6[\xda\xb9j\x08*H\xce\xd4\x0eT\x7f`\x7f\xba\xad\xa2\xa7t\xd4\x11\x9bUw\xa2\xb76u\xa4Kbl\x1f\x81\x99\x02\n\xd7\xeazV\xf7\x03aJJ\x1a\xf9\x8a\x14\xa0;\x00x*&gt;\xe0q\x9c\xd7\xa9\x8c#TTQ\xe3m\x9b\xb6NL\x89\xde\xfe \xaev\xadUy\xd0\xf6n\x9b\\W6\xd0\xe6\xc7&amp;L\x92\x84DP )\x0e#`*XRT\x08\x1f/\xd4\x8c\x1aJ\xc4\xde\xd2\x1e\xa6\xd6S\x1czg\xaa\xf5\xc6\xa8\x9ds{YIAd!\x0eFe\xa6\x83M\xb5\x85\x1c\x80\x07\'\xc7*$\xf1Ds\x97\x90\x9aK\x18\'\x88Vy\x15nH\x18\xdf\x85ri0+}i A\xbd\xa8\x82B_\xdb\x93\xee\x0fqH\x04\xf4U\xdb\xd2\x94\xf3*Y\xe4\x03\x8f\xb7\x1f\xe1S\x8b!%\xf2O\x83\xa5I\n\n\xcejD\x0eqK\xcf\\m\x0b\x0bXT\xa8\xe9\xd8\xb2\x067(r\x14&gt;\xe3\x07\xf5\xacF\xe1\xc2\xc9pL\xd8\xed\xba{\xe0\x05}\xe8\x03bRLi)}?\x94\xf0\xaa\x00Y\xc4\x0c\x07\x93\xd9^\xd4\x00G\xe3!\xf6V\x92\x01\nI\x07\xebQk(\n^\xf5\xa5.\xd1f\xbccGS\x8do;q\xe0UX\xc3,]\x0bZ\x15\xaem\xf1\x8c[e\xca|\x16\x0e~F\xc8RF|\x84,\x14\x83\xf6\x15 \xc1_j\xfd\'\xd4\x08\x97\x165\x84\x1e\xa0\xdd\xafr \xc9m\xf1\x06z\x8aT\xd2\x92\xa0\xa1\xb1(\xc3jNG#h8\xf7\xa38\x1e7p\xcb*\xd1\xf1#a\xb8!\xd8\xfa\x9fCN\x86\xb5e\x0f\xa1\x87P\xfbd\x1e\xe0\xa1\xc0\x92G\xd0\xe6\x94\x9cq\xc8\xd4%\x17\x94\xc2\xb7\xa7\xfaU~\xb8\t\xfa\n\xec\xdd\xb6{\xd8Z\xac\xf3Pc\x07\xfe\xb1\xca\xce\xcd\xdf\xf9\x02\x8e|c\xb1\xe7\xea4\xf1\x97\xe5\x03\xaf\xa5\xd7\xca?\x8d\x9f\xf4\xb9z?\xa6\xda\xb7E\x7fQKHh\xb9\xb9)[\xdf(i\x94pTI\xfc\xa0\x90O&gt;\x00\xad\x9e&gt;\x85L]\x92\xed\x98\xbc\x96\xab\xdd%Z\xe9\x1b\xf7\x9e\xbaH\x97u\x8f\xa64\x13\x1e\xa9S\x81\xa7\xee\xaaI)BI\xc1\xf4\x92{\xff\x00i\\{\x03]\x175\x9c\x1c\xb7\xd1-\xb4\xe9\x86Q\xbb\xd7[\x92\x1dyE\xc9\x0f:\xa2\xb5\xb8\xb3\xe4\x93\xfbS+\xcb\x0f\x07\\\xe8x\xfa\x9ev\x86\x87ti\x17\xd8\xb1\x03\xe8\x8aS\xb4\xbe\nJ\x80l\x9e\x16\xac\x0c\x94\x0epA\xc1\x19\xc0\x19o\xb1\xa7\xa7}H\xbf]\xae7\xcd=\xa8\xed\x97\x15?lS\x8e\xc5\x94\xb8\x01\x94\xc8c&lt;\x12R\x00\x18\xc8\xc6A%9VH\x14\xf1\xc6@q\xe9\xafT\xa1\xf5&amp;\xd5"\xe7\x16\xcf2\x07\xe1\xe6\xbb\x08)\xcc)\xa9;\x12\x15\xea\xb4\xaf\xcd\xb4\xa5H$(d\x15\x01\x93\x9a@hu8\x03\x16,\x91\x80\xa4\xc8\t\xcf\xe8M&amp;\xf0\x81vF,\x92\xd5\x1e\xfe9\xf9\x1c%8\xfb\xd4c&lt;\xbc\x12\x94x,\xebU\xc4\xbc\x82\xd2\xdc\tRFRO\x94\xff\x00\xf4j\xec\xe4\xa1\xac\x1c\xed`\x98\xa2B\n\xbf\xdb$\xb2\xaf\xed\'\x94\x9f\xdbp\xfd\xab\x1eM\xa1\xadR\xff\x00\x86\xde\x1d\x80\xe2\xb0\x87\x15\xb9&gt;\xdc\xd3\x02k\xb1\x12\xa3\xe0\x8c\xf1\x8a\x00\xd7\x84\xb0\x92\xa8ow\x07\x82h\x00\xe3-8[=\xbcP&amp;\xc4^\x8a\x85(\xab\xd2\x19\xcf|Q\xb7#L\xd7r*H\xc6\x12?JX%\x91\xae\xe5\xa7bO\x1b\x96\xdaR\xb1\xd9I\xe0\xd1\x80\xc8\xdc\xad1\rE&amp;\xebg\x87se\x1c\x7f1\xb0\x1c@\xfe\xd0\xe6\x8d\xa9\xf0\xc3+\x18\x1e\xe2\xd8t*-2\x98\x99`\x88\xfc \xc3\x8e\xa9\x97\x98J\x8aH\x1c\x81\xe7\x9c\x82\x0f\xbei\xaa\xe3\xd0\x9c\x9a\xe9\x8a\xae\xd1u\xd5L\xa3N\xb6\xe3\xb0\xf4\xe5\xb3lVc\xb6\xa2\x17/\xd3\x1bJ\xdcW}\xa0\xa7\tO\xd3\'\x93\xc4\xf6\x95\xb6\xdf,\x99i\xed\x0f\n\xd6\xa6S\x1d\x84\xa7i\x07\x81\xfeuf\n\xdc\xb2Yp\x98i\x96p{\x9e\xf4\xc4D\xfa\x89\xa7t\xdd\xc2\xd2\x9b\xbd\xc2\xda\x97\xe5[\x15\xeaBt\x02\x97\x19t\x02\xa4\x94\xb8\x9c(\x00\xa1\x9d\xb9# `\x03\xcd\x00Qw)\x92\x98\x85\x1a\xeb6:\xdc\x95ui\xc9M\\\x935\xef[\x0bZ\x92\x0b{6\xa5\xb2\xd9J\xb7%[\x8eq\x82\x07d\x9b|\x01j\xf4\x8e\xfb\x19\xfbt\xb8Gb\xd5\t\xdf\xc3\xb5!\xb4\xa5\xb6\x9ciYZHH\xe0)D\x9d\xdeJ\x93\x93\x93L\x07\x1e\xa4\x12\xbd:\xb7q\x9fI\xf6\xd4~\xdc\x8f\xf3\xa8\xcb\xa1\xae\xc8\x0ci@JD\x84\x9c\x1d\xc8W\x7f\xa0\xaa\xe2\xb2\xc9K\xa2\xc1`\xa9\xf6\nP\xad\xaam\x7f\x98\x1f\x07\x91\xff\x00\xef\xa5\\\x99SE\x01bZ\xff\x00\x16\x8f\x9b\xb3\xedc\xf7\xacl\xd49\xea@\x1b\x9a\xd2\xd00\xafqIv\x04\xdbN\xadnDIZ\x89\xe3\xcdZ\x06&amp;\x00\x97\xca\x920r9\xa0\x05\xa4\x7f\xbah"\xfb\x01$\x83Mv!\'\x123\xda\x93\x00\x98\x04\x1c\xd0\x00m :8\xa9"Hj\xd6\xc01\xa6n\x8bdlQ\x88\xe8\xc8\xfe\xc9\xa6\xbb\x06Y\xc1 &lt;\xac\x0f"\xacE2\xecv\x82\xa2Jr|S\x10\xfaT\xad\xa3\x9a\x00\x8e\xea\xa9/E\x9fb\x0c\xac\x04\xbby\x87\x1diRB\x92\xa6\xdcP\n\x189\x19\xc7c\xdcx"\x812\xaf\xd2vKM\xd3Yj=\x13&gt;\x03OX\xed\xb7G\xcc8Da\x11\xcb\xa1\x1e\xa6\xccr\x9d\xc7\x93\x83\xdf\x9e\xfc\xd02\x11\xa4\xee\xf7\x19\x10"\xc9\\\x92\x95\xbf\xaeg\xb6\xe7\xa4\x90\xdaT\x98\xe46\xc8)H\x03\tJ\xd4;s\xc19 \x10\x01{\xebp\x17\xa7.IP\xc8\xfc2\x95\x8f\xa8\t \xd4e\xd0\xd7eK\x19J\xfcR9?\x95?\xfcEW\x1e\xcb\x0b\x15\x95)\x13\x9aJ\x16\xa4\x85D\n (\x8c\x9f\x97\x9a\xb8\xae]\x9f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>804981</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>1974</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Rafael Paiva</t>
         </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x00\x00\x00\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x02\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x07\t\x05\x06\n\x04\x01\x03\x02\xff\xc4\x00:\x10\x00\x01\x03\x02\x05\x03\x03\x02\x04\x04\x05\x04\x03\x00\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!\x08\x131\t"AQa\x14#2q\x15B\x81\xa1\n\x16\x91\xb1\xc1$3R\xe1\x18C\xf0\xff\xc4\x00\x1b\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x03\x05\x06\x01\x02\x07\xff\xc4\x00-\x11\x00\x02\x02\x02\x01\x03\x03\x03\x03\x04\x03\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x11!\x121A\x05\x13q"2Q\x14a\x81\x06#\xa1\xb1B\xd1\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xcc\x180`\x840`\xc1\x82\x10\xc1\x83\x18\\\xf3\x9f\xb2^\x9be\xc7\xb3n}\xcdT\xfa55\x8b\x07gT\xa6!\x96\x92O\x81\xb9d\x0b\x9f\x81\xf3\x82\x132T\x07\x04\xe3\xcdP\xaaS\xa9\x10\x9c\xa8U\'\xb5\x1d\x86\x90T\xeb\xcf\xb8\x10\x94\x01\xe4\x92x\x03\t6\xbb\xfa\xe5t\xa9\xa4\xd3\xe6\xd1\xb2\xf4\xa99\x8etU\x10\xa4S\nK`|(\xaf\xc5\xb0\x92u\xbd\xeb#\x99\xfa\x81\xd3#C\\v\xa8\xb4\x89\x92Kq\xa1\xc1\x91\xb8\xc8p$\xac%\xe5\x92=\x80\x0fp\x00\x90T\x01\x1c\x8cCe\xf5V93\xd0G&gt;%\xbaD\xea\xef\xa6\x8a\x8c\xd7i\xb0\xb5\xbf-8\xeb\n)u"\xaa\xd8\t#\xe2\xe4\xdb\x1bT\rK\xc8\x15jJ\xabT\x8c\xebI\x93\x15(*2c\xd4\x9aZ\x00\xfa\x92\x95\x11\x8ec\xe0k\xd6n\xcd\x99\xa2\x04x\xd9\x8a\x9a\xa4K\r0\xe3P\x1d\xec\xa0\xba\x12?$\x02\x01R\x94\xe5\x81\x17&lt;\xac\x03\xb4\x82\x91\xfd\xab\xa8mL\xd3\xe9\xcb\xc9\xb3\xa2\xbb1\x0e\xb6\xa6\x8b\xb4\xf9\xee\xac\xa4\xac\xfe\xbd\xa8#hH6\x00\x00\xab\xa9\x17\x1eRQ\x1e\xa4\xa4\xeb\xa601X\xae\xc1\x9d\'\xe9\xd7R\x9a-\xa9\x92\xe4Rr\xce\xa5Qd\xce\x88\xf2\x9b~\x1bU&amp;\xcb\x97\x06\xd7\t\xbd\xc8\xfb\x8coM\xca\x8e\xef\xfd\xb7Rn.,q\xcc6\x9cj\xe6_\xcdyY\x96\xa1\xa1\x11&amp;\xfe9\xfe\xc4A!E\xf5\xa8\xa1*Z\xbb\x81\xc2\xa0\xe2\x8b\x80\x83d\xa7r\x15\xed\x04\x84\x99\x7fN\xb5O\xa8}!4\x8c\xeb\xa3\x1dEfh\xb5w\xe3\x07\xe4R\xe6f\x05\x87\x1c\xb3\xc4\x94\xad\x97w\xa4\xedG\xb7j\x92\xbb\'j\x80PRq=y\xb5?y\x03Ujw\x13\xa1\xec\x18L\xbd5\xbdM$u;\xdb\xd2=m\xa3\n.z\x8f\x1fr\x7f/\xb6\xcdD\x00I\xda\x9b\x92\xdb\xa0\x02J9\x04\x02RH\xf0\xe6\xe1\xc0C\r\x89\xe2\x180`\xc7a\x0c\x180`\x840`\xc1\x82\x10\xc1\x83\x06\x08C\x06\x0c\x04\xd8\\\xe0\x84\xfc\xdey\xa6\x1b.\xba\xb0\x02E\xce*_\xd7\x93\xad\n&amp;~\x88\xd7L\xd9\x06\xba\x83.\x873\xf8\x9dUQ\x9e%M\xa5(Z\x08XM\xcf)R\xc5\x80*\xe4\x91k\x12%\xcfY/UO\xfe\x15\xe5I\xb9\x17(J[\xd9\xba\xb6\xcb\x91\xe8Q\xd8l\xab\xb2\xad\x87\xf3\x16G\x80&lt;\xdf\xfd\xfcb\x9bt\x94\xd03D*\x8ef\xd6\xdc\xe0\xba\x9dN\xb0\xf9~\xa5R\x91-A\xe5\x1b\x95\x13\xc1)Z\xd4\xa5\\(\x92\x86\x92\x12\x84n\xf7\xdd,\xcc\x91Jk\xc9\x93\xd0\x9dM\xb9\xad\xe7,\xe3\x96\xb2\xeeN\x14\x1aE\x12T9\xd5\x14%\xd7\x7f7\xbc\xeb6_w\xf0\xb6)\xda\x9d\xe0\xa0(\x10\xa5\\4,\x928\x8dk\x1a\x87P\x92\xd0\xcb\xafF1\xd4$\x15\xae;AJJ\x926\xa56\xdf`\xaf\xd3\xb6\xfc\x0f\x93\x7f8\x995!\x19w7\xc1\xfc\x1a\xd6\xd3\xed6\xdb\x93P\xf2$\xb4\x97\x94\xa2\xa4\xb6\xd9t\x05\x0b$]?\x00\xda\xc7\xe4\x8cG\xaf\xd1r\xb6J\x9f\x16K5x\xb5\xd9jq\x0b,G\x8cm\x18\x04\xadWq\xc3\xb57\xba\t\x00%W\x00\x9d\xc0\x8bc&gt;\xf9J\x06\xdaX\xad\x0e[\x89\xfb\xe4Jef\x9b\xa5K\xafK\x80\xfa\xddv\x01b\x14\x97YIP.:\\S\xa1\x00\x15\x05\xac #\x93\xb5H_?\xa8\x03\x84\xfe;V\xcb\xf9~\x9a\xb7\x1bfs\xefGT\x98\xcf\xc8\x98P#\xba\x8d\x8e\xa1\xc0\xb5\xacm\xe2\xe9*M\xaf\xee\t"\xd6\xc6\xc7\x96\xab\xf5\xca\xb3\xac\xe5j\xa6Q\xab.\x9c\xedm\x89\x92\x95\x02\tu\xc7\x18\x0e\x97\x16\xa3\xdb\x02\xf6\x0bZ\xb9P\x04\xd8\x9f\x04\x1fF\xa0d\xcaVm\xaa?6\x99X\x83La\xc6\x16\xd7\xf0\xda\x9c\xc0\xcbQ\xd4\xa0P\xa3\xbd\xc3\xec;\x8a\x88\x1b@J\x96\x08\xf1\xb4\xc6.\xaf{&amp;t\xd7j\x8d\x016\xed?\xca:A\xab9a\x9a6T\xafT?\xcc\xd5\x9aCo2\xa4%)pT\x19\xb2\x96\xc9^\xf0\x95\x12\x90\xe6\xdb\x94\x95-\x03q\xdc\xe8Sr6\xa8\xe9\xfeh\xd3\x88\xb4\xdc\xd9\x02\x8e\xda)\x8cv\xaa\r\xcanSm\xa1N\xecm\xbd\x8bZ\xf9\x0f-`\xb3\xcf\xb5Ke+\xbaGp\x15\xf6\x93\xa5Tl\x8b\x1dR(9\xf6\xaej\xaa)\\\x06c0\xb4\xa5&amp;\xf6J\xce\xe2\x02\x07\x8d\xa7j\xf9\x04\x83\xe0\x86oI\xf5R\xb5\xa8:v\xbd=\xd4\xfa\xfb\x11\xabI\x8c\xa6\x11=-][\\RI\x0e\x14\x82\x82\x85-(K\x8d(\x15\\\xb6\xb0\x14@\x08\xf4\xb9\x15\xb3hN\x9c{u\xb2&amp;[F\xfa\x8b\x7f\'fX\x9a\xd3\tUjsqQ&amp;}\nK\xae\x84\xbf\x11\xe6\x1fi\xb7\xa3\x90\xf1\xb8\xb3\x8e%\tme%}\xd4\\\x82H\x17\x01\xd0?\xaa\x16\x9auOJ\xa6d\xac\xeb2-\x177\xc8\x8c\x15\x1a2\xdfHn\xa2\x90T\x92\xa4\r\xc4\xa1\xc0\xa4)*l\x93e%@\x12R@\xa5\xcc\xbf\xa4\x13\xeb\xb9v\xb5\xa5\x0e\xd6D%\xbb!\xc9Q\xe6G\x96\x85!\x85\x96\xcb\x81\xfd\x81D\xa4\x14\xb2\x14P7\xb6\xb1\xb8\x82\x16@:6X\x9d\xaa\xdaaOE6\xab\x9b\xe9t\xe7\xf2\xeehfW\xf9\x8e5Q\xc8\xcaa\x01m]V\xba\xc0\x8e\xb2\xa6\xd4\xa5\xb6\x92\x83\xf9n%.$,*\xdb\x13)\x80\xd7\x88\x8d\xd4\xe8\xfe\xf3\xa8\xfe\x141\xf4\x008\x18K=&amp;\xfdA3WS\x19M\xdd&amp;\xd6\xfa\xcd\nvm\xa4GJ\xe9\xd9\x8b/M\x0fB\xcc\x11B\x12K\xad\x93\xca\\M\xc8RT\x02\xbd\xa4\x91\xc1\xc3\xa4\xa5\x04\xe2\xddX0\xd8\x8a\x10A\xd4\xfb\x83\x06\x0cz\x9c\x86\x0c\x180B\x180`\xc1\x08b3\xea\xef\xa8\xfc\x9d\xd2wO\x99\x97]s\xbc\xd6\xd9\x87B\xa7-\xe4%\xc5\xdb\xba\xed\xbd\x88\x1fr\xabbL\xc5\x1f\xff\x00\x8a\xeb\xa9\xedL\x9b\x9c\xb2WH\xf9E\xe4\xb5@j\x10\xaeV\xdan^\xc5\xd4$\xa9\xce\xdb,\x1e\r\x92\x91u\xde\xe3\xe4\\^\xe2;\x1b\xa1\x0bOH:\x9bR\xbd\xba\x8a\xd5\xddP\xeb\x0b\\\xebz\xa3\xa8\xcfT\xb3\x05b\xa7P\x06+0\x9d\x05\xaa{\nRv\xb06\xac\x05%\\\\\xdc\x8ff\xd5\x0f\x16\xf7G\xe9/?\xd456\x15\x12\xb4\xa7b\xf6\xd9\x8f\xdc\x86\xdb+\x90\xb5\xfb\x12^#aPRK\x80\x95Y@\'\x8d\xde,\x98\xff\x00\xa3\xf90\x15\xaa\xd4\xaa%-r\\T\x05\x99\xd2\x1c\x8e\xf9\xba\x16\x08S\x8f\xa9\xcb\xabaN\xd1\xb4|X\x90\x9b\xfb\x17e\xd9\x0bJ\x9a\xd6\xca\x82+lLU;\xb3\x17\xb3H[C\x86\x92\xa4\x90T\x01\'qU\xeeT\xad\xc4\xdf\xe9\xb4#5\x93{\xd8N\xfb\xcb\\Z\x81m\xc8s6t\xcf\x07(\xd1hC0\x16%\xd6\xb3%AL.\x01XW\xe0\xa06\x86\xd2\x14,J\\\x1b\xb6\x02\x01 \xac)A_\x98@\xf1dN\x97\xf4\xef3\xe5\xba\xad\x16\x97Zi\xaa\xcc\t(u\x91&amp;*\xae\xc3\x88\xde\x8b8\xd0]\xd4\x85{\x92\xa5\x02\x15e\x10\x92\nA\x0c\x84\xcd\x1c\x97\x943Q\x9d\xae\x99\xfa\x1c\x88\xa5\xa6\x12%\xc8\x0b))e\xce\xe3i&amp;\xe9B6\xa8\'\xf9y\xf7\xdc\xd8\xab\x10\xfe\\\xcb\x0e\xd5z\xad\x9f\x9c\xf4\xa1\xd3:\x975.\x19+owgbv\xa17\x07\x82\xa2\xb4\x05\\\x02\x08\x0b\xbd\x8f\x18\xac\xb5\x81\x00\x11\xcfi{N8,O\x8dM\xcbN:h\xa9OfD\xe8\x94\x8c\xa8\xc4\x04+c\x8bjG\xe2\x9dRP,\xa0\x90\x19Al\x9b\x91rn\r\x8d\x8d\xb9\x8e\xb5\x1b\xd3V\x16w\xccN\xe6hU\x99\x01\x0exh/m\xad\x7f\x03\x80o\xf7\x1f&gt;\x06\x1dm\x1a\xc9\xee\xbdAK\xb5*K,\xcajK\xa1.69RR\xe2\x92\x91s{\xf0\x90\x0f\xd6\xd7\xf9\xc6yu\x0c\x99P\xcc/Q\x935+\x9a\x94]q\xfbdp8\xe0\xda\xdc[\xeb\x8b\n\xf0\xebj\x812\x1f\xaf\xdc=#q\x1c\xca&gt;\x99\x102b\xda\xa8F\xa9!M\x8eJXA\x06\xdc\x90\x05\x8f\xc5\xedo\xe9\x89*\x91\xd1\x86D\x90\xfa]\x98\xa7\xdd[\x89\xd8\xa4\xa8&amp;\xca\x04\xfe\x92?\x7f\xef\x86R\xbf\x10!M\xa1\x00\x0bs\xb4\x01\xe3\x18\xd8\xb1^\x12\xcb\xc9\x16!WI\x07\xc6&lt;\x1cz\xd5\xc6\xa4\xc2\xc65\xf2&amp;\xa9\x96}=r\x0e`\x97\x1d\x15J\x03o\xa9\t\x05\x8e\xf8$$\xde\xf7$\x9b\xdc\x1eG\x83\xfd\xb0\x9az\x83\xf4\x90t\x1bXc\xb7\xa65\x85\xb7\x0ef\xd8\x95d8\x95:\x89}\xd5+skk\xc2\x92H\x16"\xcaB\xd6\xda\x92\xa4($\x8bN\xd3\xfc\xe2\xfc\x14w\xa57\xb9\x05\xb4\xedPO \xf8\xe6\xdf\xb6\x13\x8fR\x8aEey\xba\x9f\x9c\xa9\xb2\x10P\xcd]\xb5\xad\x87\x01\x01\xf6\xee\n\x92ln8\x1e~\xb6\xc5\x91T\xae\xae\xb5\x1c\xcag.\xf6\x15i\tt\x85\x9a\xd7\xd2\xae\xb6\xe5\xfc\xe3\x90\xddj\x13\xb3\xe5"}.S\xef\x14!r\x12\xa7\x9cv\x9d%ns\xb4\x12\xf3}\xc5mHS\xcb]\xd2\x87T\x13~z-\xab\x19\x7fZ\xf4\xda\x99\xa8\xf9l)\x0c\xd4\x1b=\xd8\xce\xff\x00\xdc\x8c\xf2\x14P\xe3+\x1f\nB\xc1I\xfd\xaf\xf3\x8eb\xe9\x1dSd\x9c\x8f\x9e\xaa\xf92l\xf9\xee&amp;\x13\xeeTh1\x16\x84\xadl\x95\xb1c\xdbqW&gt;[Xq\xbb[\xd8\xd1\xba\xca\xac\xdd\xba\xfa4\xf5J\xf30\xf2\xfeI~x\x91\x973\xc4@\xa8N\x9b\x8f\xc3\xd5ZB\x90\xe5\x87\xc2\\\rm\xfb\xa8$\xdc\x9d\xc4\xb7\x87\x7fQ\xe9?\xf8\xca\xcb\xab\xe9\xe6Y^\x0c\x00\xdc_\x06,\xa2\xf0\xc1\x83\x06\x08C\x06\x0c\x18!?\x97\x14\x12\x82\xa3\xf01\xcb/\xf8\x8b\xb5\xdb2U\xfdZ\xab\xea\x9c\xd4\xd4@\xa1\xaa4VPRA-2\x84\xa8\xad?Tn \xfd\r\x88\xbf\x9cu2\xfaJ\xdaR\x01\xb1)68\xe5\'\xfcCR*\x12}O\xb5\x0f\xb2\xa6\x17PjX\xa52\x14\xc1Z\\Om\x1c\x04\x84\x9fw\xe6\xf9\'\xe9\xf4\xc2\xf9?d\xf6\x87F@\xfd\x16\xeb\x1c|\x87Z\x95G\x97!\x01\x15;9-\xd6\xd4v\xae\xde\x13\xb3\x84\x9f\x9b\x128\xdc~\xa4\x1b|\xe8c6\xaf7\xd1\x9b\xa9\xc7eA\xb4.\xc8+]\xcd\x8d\xcf?~qH\xfd7\xe9\x9ed\x93\xae\x14\xcd=\xa90\xb6\xe6\xc8u&gt;\xd2\x85\x0b\xa0\\\xee\xe4\x0fi\x02\xe1^\x08 \x8b\xe2\xfc\xbad\xd2\x96\xf4wK ASj\xef\x06{\x8f~\xe4x\xfe\xf8\xcd\xe4/\xf7\xf8\xed4\x1e\x9fXz\xba\x8c\x9f\xa9\x1a{\x96\xf3\xa3\x055\xdaS2\x9b\x02\xcb\x0f$\x10\x13\xe4\xf2|c\xda\xfd\'FZBh\xd0\xdb\xa6\xb6c\'cqa\xbc\x94m\x03\xe2\xc9&lt;aZ\xcdz\xd9\xad\xb9\xf2\xb4\xeeJ\xc85\x04\xd2 \xc6_\xfd\\\x8e\xf1m+\xf8 \x91\xcf\x8f\x8b\xe2$\xd6\xed\x17\xea\x06\xb1\x08\xd5\xf2\xafT4Z\x0c\xb6\tXmq\xc9R\x8f\xd7\xb9\xba\xff\x00\xdb\xfeq\xe8]^\xb4\x14\x1f\x9e#\xa6\xb7\xea\xd7V\xa3\xf4\xeb\xd9:\x90\x90\xdd*:\x1a\x04X\x14r\x05\xbc\x01\xcf\x1f\xd3\x1a\xd8FU\x8fZ\x93.\x0cXl\xbe\xf2\xc9y\xe4\xa1!K$y\'\xe7\xc0\x1f\xd3\x15\x1b\x98:\xae\xf5\x0c\xe9\xc33\xa6\x1es\xce\xecW\xa8\xc3\x84\xceeA\xf6]M\xfco \x94\x9f&gt;N\x1en\x93\xf5\x9b0k\x8e\x8f\xc4\xce\xa9\x86\xb5&gt;\xf2\x15\xf8\xb4\xb7{4\xb1\xe4\x02\x07\x03\x8e/\xf5\xc7\x06j\x97\xe8\xd6\xa3\t\x8c\xc9_Y1\x88w\xf8c\xcc\xa9\xf5Ml\xda\xe3\x93c\xc7\xfe\xad\x8f\x03\x0b\xa7\xf7K\x89}%$\xfe\xa1\x84\x83\xac\x8e\xb7s\xa7O!\xca6Z\x8b\xdd\x9c\xeb\x8a-\xb6\xfb\x85  \x01ca\xe4\x92O\xfab%\xd1\xce\xb9\xbdCu\x8aS\xb1r\x86\x93\xa6Tc\xc2$\x94\x86[E\xcf\x1f\x98\xb3s\xe0\xf8\xc4G%Y\xf4\x04\xe3\x82\x8b\xc4\xb6\xbc\x99\xf8W!\xb8\x1b|*\xea\xb9O\xc8\x03\xe7\x0b\x07_\xb5(T\xc3\n\xb2\xb6R\xefm\xe2\xb4!g\xdamk\x0b\x1e&gt;\xb8\x89t\xf7\xa8\xfe\xae4\x931\xc4\xcd:\x9fEBb\x07\x02+\rF_q\xa2\xdf\xd3\x9f\x04\x03{\x8e.&gt;\x97\xc6\xeb\xd6UQ\xae\xa0zz{=df\x8e\xd6\x18/\x08\xe0~b=\x97 \xfe\xc7\xfd\xfep\xdb^-\xc7*\xbc\x11+\x1e\x8d[\xb3\xe6T\x9fY\x99p\xb1\xac0\xb3\xfeK\xa8\xa5B{\xdbeFZACN\xa9Cu\x8f\x8b\x13\xb8\x90mn-\xe2\xf8p\xbd%\xba\xc9\xce\x19gS\xb2\x16\x99JnR\xc4\x0c\xfe\xd3n\t\xb7\xde\xc0L\xa4*\xe9\x17\xb2@[n\x02\x91\xf2\xe1\'\x91|%\x95z\xab\xf5\xc9\xd5(\xb3`H\x92\xf2IJc\xb0\xd3\x80\x85\x12\x16\x08\xb0P6P\x06\xdex\xf8\xf2\'\x8e\x81+Y~\x93\xa90s\xa9CM\xd4hU\x18\xb3?\x0f)e\xb5J\xda\xeaW\xc1\xff\x00\xc6\xd7\n&lt;\x80\x12\x0f7\x18\xe5n\xc1\x94\xf6\xed*\xdd\x19\x98\x8d\xf1:\xc4\xc1\x8c\x1e\x9cgz^\xa5i\xfd\x13Q(\x88Za\xd7i1\xe7\xc6K\x9f\xa9(y\xb4\xb8\x01\xfb\x80\xab\x1f\xdb\x19\xcci\x87i_\x0c\x180`\x840`\xc1\x82\x13\xe5\xc0\x16\xfac\x95\x1fZ\xcc\xaa\xe4\xdfS=Z\xcd.\xa5R\xa79\x99dw\xe1GqE\xf0\xdaJ\x10\xdb\x89H\xfd@\xa6\xe0\xdb\x91a\xf5\xc7U\xabP\x00\xdb\xfa\xe3\x9c\x8e\xbe\xab\xfd\x19k\xb6\xbag\x9a\x06\xa2C\x91E\xcf\xf5\xda\xd3\xd2\xd1\x98\x94\xe3\x8d\xa0\xb0\xf2\xca\x98l\x12\xb56\x10\x96\x8b`Y(QRO\x91pk=J\xd5\xaa\x90I\xd6\xcc\xb1\xf4\xdc;s,n\x81\xbe\x91\xb3\xf1!\xcfHm#F\xb2uf\xf6r\xceQ\x0b\xcc\xd0\xb2\xf9*\x8d&amp;z\x9e\xfc;\xa1\xd4\xa5\xa1\xefR\xaeH\x06\xe0[\x91\xcd\x8f\x18\xb8*\xe6G\xa8\xcf\xca\xae\xb3E\x1d\xb7T\xc9\r\xa3i\x166#\x82\x06+\xa3\xd2;"K\xc8\x1a\x9d\x9c\xde\x9c\xfb\xae3\x16\x02b7!\xd5\xeeS\xfb^IIR\x8f+V\xd2\x92\x0f6\x167\xe4b\xcft\x9f4\xe5\xc7\xd3\xf8j\xb2\xc7t\x0b6I\xb8\xb6(\xd5\xd5\xcf\xd4{\xcb\xbcj\xde\xba\xce\x87h\x82u?\xd3G]5\x9ac\xf0\xf2\x02\xa0P\xa8hp\x97\xa4\xcb\xac\x16\x1f\x9c\xe1\xf0TZ\x0bRR&lt;\xf07{|\x8f\x18Eu?\xa4\x9e\xbe"\xea\x13-=\x9a$H\x8b)\x81\xff\x00S\x04\xc7{w\xb7\xdc\x97?\xfb=\xaa\x04\xfe`&amp;\xd6\xf9$\x0e\x823\xa5.\x83_\xa58\xc2\xc8q\xb2\x93\xff\x00a@\x92-\xf4&lt;\x1f\xeb\x85\xcf8h\x02k\xf5\x93+.R^).s\xbe\x9e\xdaE\xcd\xf9\xde-o\xdf\x0c\xd5ZRK\x01\xd5\xbf\xcc\xeb\xab_\xa0\xe4\xae\xbc\x89S\xd9sD5\xce\x91\x9f\x9d\xcat\xf8S\xdc\xa7\xb8\xb6Y[\xebh\x86V\xa7\nS\xb9\xc6\x80\xdb\xc2\x96\tR\x00)\x06\xe4\x04\xa5DZ\x7fEzF\xbd\x0b\xe9z\x83\x94\xa7\xd3R\xcc\x97\x92\xf3\xd2\x8aM\xeeT\xea\xd4\x07\x1c~\x95\x01\xc62\x14\x8e\x96 d\xf2\xdea\xaf\xa9-(\xba\x0f\xe1[]\xc1\xb7 (\xdb\xdd\xcd\xcf\xda\xf8\x92\xf5\x02\x96\xfe[\xa2\xc4\x8d\x1eGr9d\x06\x94\x84\xd9)?6\xb7\x9f\xf7\xc2\xc3\x18\xb5\x85\xc7\x12\xd3\xac:\x85\x1d\xa5P\xfa\xa3e\xac\xf7\x98z\xa9\xa8H\xcb\x94\xc4\xbb\xf8*c\t\x83\x15\t\xde\xa7\x14R\xea\xca\xc2\x7fO\x01\xbd\xb7Q\x00\xabjE\xc9\x00\xae\x935\xaf\xadM \xa1\xc4\xaee\xfc\xb5-\xb8\xd2\xfd\xad\xbbQ\x930-$*\xca\tKKm\xab\xda\xc7\xf4\x9b\x83\xc16\xc5\xbdj\x9e\x8cN\xaf\xd5\xda\xcdQ\x02\x11Tz/% \x05Hd\x90JI\xfa\\n\x1f\xfb\xc6\xad\'L\x94`\x98\xe6\x96\xa8R\x1cN\xd7J\n\xd6\x85\xa6\xfe\tB\x82\xad~ma\x89k\xa9)n\xa7]\xc4\xaeSme\x11\xb4w\xde$\xfa\x05\xd5\xf7V\x0cF\x8auCK\xe4f\x88O\xb0\x1c\xaa\xb1\x168q\xd8\xad*\xdb\x8d\x90\x90\xa4\xed\x06\xe4,+\xe9\xbc\x1e0\xf3t\xaf\x1b.\xe6J=n\x8b\x0e\x96\xb4Q\xa5\xc5\x0f5\x1d\xf4\x14\xdd\x0bM\xc0\x1f[\xdc\x03cq\xcf\xd3\x19="\xd2h\x99\t\xd5M\x8d\x1e\x1bg~\xed\xf1\xe2\x14\x15q\xc8QQQ#\xcf\xce%m.\xcb\x11X\xadTsR\xe8\xb0\x92\xc3m+qLT\x81s\xf2x\xe6\xff\x00\x7f\xae;R/\xbd\xb5\xec|E\xefV\x15\xe8\xf3\xaf?\x99E&gt;\xa3]5\xce\xe9\xfb\xaa\xd9\xf9|V\x90\xc5*\xa2\xca\xeaP$\x8d\xcd8\x90Vn\x84\xabj\x86\xe1\xcf\xb4\x10\x08\xdbk\x12\x06=\x9d\x1dQs\xeex\x984\xe7)\xc7\xad\xd4\x9f\xadNm\x881`Dst\x85)D%\xc3\xdb\xfdd\x95(\x10\xa5\x02\xa0\xa2,\x0f!\xe1\xf5a\xd0z\x0e\xad\xebNPrdF\xbf\x03P\x82\xfb.&lt;\x12\x0f`!N,\xd8\\\x10Uv\xc6\xef\t\x17\xf1q\x86\x7f\xd0:\x95\xd1\xceS\xd6\xa9Zi\xa4\x99Y\xd9\x15\xbae)\xe6*Uj\xc4K\xc8n\xa2\xda\xd4\xbb\xb6V\x90\xa4\x02\xd0y$\x0e\x07i\x16\xbd\xd4\xa2\xe2\xfb-p\xac\x9d\x13\xdb\xf7\x95\x06\x8c\x85Sr\xa9*\xbd\xff\x00n\xc2Z\x0fL9_;d\xae\x9e\xf2fQ\xd4\x8e\xc0\xae\xd3r\xe4H\xf54\xc6@J\x10\xeaZ\x00\xa0\x01\xc7\xb4X\x1bqpq\xbf`\x00\x0f\x181{*\xc9\xd9\xdc0`\xc1\x82r\x180`\xc1\t\xfc,Y\x1b~N(\xaf4i\x8e\x9be\xda.\xa2g\xbdL\xd1\x1a&gt;s{45\n\x04Z5Q\'cib\x18\x08t89B\xc9yF\xe9 \x8bq\xcf8\xbdE))\x1e|\x0f8\xac=H\xd3\x8a\x0ee\x95\x99t\x9a\x1ac\xb92.r\xaa0\x96\x0b\xc9ea\xa4\xcbt4E\xc8\xdcC\x05\xab\xfd\x01\x17\xf8\xc57\xacTm\xa1u\xe0\xcd/\xf4\xd6B\xd3}\x8a\xc3a\x87\xfa1&lt;\xe8Es\xe8\x999\x19\xa2\xbfHE$ML\xe2P\x01\x044\x89n\xb6\x06\xf5\x9d\xce\x84\xa5\x96\xd2Ue\x1fh\xe6\xc9 2\xf4\xaa\xfdF\x11 \xcb\t\n\xe1\x03u\xac&gt;1\x88\xd4]\'\xa2d7\xb2\xeeU\xa4\xd1d\xc9\x8dN\x80\x88\xf1\xa2\x00R\x90C\xae:\xe7p&amp;\xca+%n\x0b\x80B\xbd\xc4\xf1q\x8f5*\xb3\x1a\xa7\x05p?\x0e\xe2_\x8c\xefh%m\x84)IH\xb0V\xdf\xbf\x06\xdf\x17\xc6r\xd4\xe9@7\xc8\x96\xf587\xb1\x03\x89:\xe9\x9dQ/0\xa7+\x13\x96\xa5l\xb2S\xe7\xfd\xf1\xb6\xcc\xcc\xd4&lt;\xbb\tO\xa5\xe4]-\xddi*\xe4~\xf8\x84h\xb5d\xb5Mj\x03\xef\x05*\xd7\x17$\xdf\x8f\x18\xcc\xd4+Tf\xa0w3\x04\xb5\xa1\x84$oJPJ\x9c\x17\xb1\xf1\xe0}\xcd\x87\x1f8s\x1a\xd2+\x0b\x0bB\x06\xea1y\xf5\x1f\xf53\xa4\xf4\xed\x93\xa4T\x9c\xa7="\xa0\xfbJn\x95\x01\xb4\xd9JAPOp\x0f\x8b\x9b\xf2~\x83\x0b\x1e\x9a\xfa\xc0g\x0c\xd1\x90\xa9\xd4\xb7\xe3T\xd8\x9a\xe2\x96\xa9\xf0\xe6\x8d\xca\x8e\xb4\xee\xbd\x88\xfdH\xd9e^\xc0\x8eA\x1cr\xe0ui\xa6\x9a\t\xadt\xeauR\xaf\x90Z\x91R\xa4%J\xa5&gt;\xa7\x94\x8b7t\x95{A\xb2\xc7\xe96W\x8f&lt;s\x84\xfb_:Pz~\xa85L\xca9z\x0cj\xd4x\xed\x916\x9f\tM~!\xa5\xac!hq6\x00\xb8/\xc2\xac\r\xbc\x9f\x81\xed\xd9\xc0\xef&amp;g\xad\x95z\x06\xb49\x1f\x93\xf9\x9b\xc7H\x9e\xadT\x8dt\xd6Z\x9eFz\rE2`\xa8\xa2\x04\xaa\x93e\x1d\xfe\xd8 \x14\xa3\x92\x94(&amp;\xdbM\x8d\x88\xe0\x1c:\xf0\xb3\r.\xbd\x0cLZ\x1bHu!\xc0\x7f\xf1\xbf6\x07\x15\xc7\xa6:?\xa7\xdaY\xa9\xcd\xe6*\xc6]f-u\xb2\xe3a\xd6\x8a\x92\xb5\x94\x84\x82\x92\t\x16\xf9\xe4\x8b\xfdI\xf2\\M6\xd4j-b\x01\x8bL\x96\xd2\xd6\x8b\x07\x12\x85\x83\xb2\xf7\xe3\x8f"\xe1V\xfd\x8e&lt;]cx?\xc4\xea**\xa9=\xfc\xc9y2\xc1\x1d\xaa\x7fox\x04\xd9\xce\x02\xad\xf7\xc6\x06\xb3\xad\x93\x16NQ\x85\xdbj\xca\xdb %v\x0b\xb7\xfa_\xeb\x8cMN\xab24#\xbd\xc5\x14*\xe7rnH\x1f\xbf\xc0\xfb\xe3P\xa6@T\x8c\xc6*\x0f\xa8]N\x02\x80\x14\x7fP\xf9\xbf\xfab \xf6(^\x93\xc9\xef!\xbf\xdb`f\xa1\xd7\x16\xa0F\xc9/d\xc9\xf3\xb2Rs\x032+\xcb\x8d*;\x8b[A1\xd4\xce\xe5$8\x93d\xb8\x14\x84\xa9$\xdc\xf0\xaf#u\xe6\xefL\x1d9Ek\xd4\xaaN\xafi\xfeX]&gt;\x83]\xcb\xc8\xac\xba7\x05\x16-\x1d\xe8\xcaAPH\n\xba\xc8\x17\xb7\xf3\x7fLE\xbdG\xe4,\xdd\xa9yr\x06@\xa3\xd1\xdbv}.\xb2\xe5jA\xee\x84\xa8\xc7m\xae\xd2\xb6\x95\x9frI*\xb0;\x7fE\xac\t\xb6\x1f\x0fH\xfd:\x8bI\xa4V\xb3\x90\xa76\xd1n\x97\n\x03\x0bj\xc4#z\x9c\x90\xe3{\x87\x9b$\xc7\xbf\xdc\xe1\xecj,\xb7=I?H\xe7\xf9\x11;\xf2+\xc6\xf4gQ\xf7?\x1f\xe4s\xfe#\xa4\x05\x85\xb0`\xc1\x8d&lt;\xc7C\x06\x0c\x18!\x0c\x180`\x84\xf9pSs\x84k\xab\r=\xa2i?TOf\x8a\xcd9-\xd23\x9b\x7f\xc4i3\xd4HLZ\xaa\x19\xecKj\xe3\x90\\e-\xba\x07\xc9B\xfe\x9c&lt;\xa3i\x16\x18\x84\xba\xf5\xd0%u\x07\xd3\xfdS-\xd2\xdeS\x15Xc\xf1T\xa9m\x9b-\x87\x90\tJ\xd2~\x0f\xfc\x13\xf5\xc2\xf95{\xb4\x95\x1d\xfcFq/\xfd=\xe1\xbcy\xf8\x88\xdfRT*\x02\xa6\xe5\xd9t\x89\xf2d\xb2\xf2\xddZ\x10\xd3\xbd\xdd\xa5\xb6\x17\xb7\xe6\xe8@\x05d\xab\xc0\xdb\xcf\xc6#Zl\xe91\xebn\xa1\xc9\xe8;\x96\x15\x05\x9d\xb6\'\xdc\x10O\x9e\x12=\x87\xe4\x11s\xe7\x0b\x9fL\x15}y\xcc\xb5\xac\xc9\x985{T\x13Q\x89L\xab=Ik\xda\xe2\x19GmE\x05\xc5\x1b\\\x11u\x0e8\x05\x17\xf7x\xc4\xba\xdet\x87+4\xb6\xb5H\x92\xa6\xe3\xa9N\xc7*\x8e\xa0\x96[J\x8a\x1b\x01k?\x05L\x80\r\x80\xb8\x1f8\xc8d\x06$u\rMuOWY\xe8m\x8f\xcfi%G\xab!\xa5J\x95\x16C\xb6\x84\x87\x1c\'v\xd4\x9b\x0b\xda\xc4\xf8\xbf\x8c+Z\xed\xea\x07\x91\xb2\xfdeOWe\xcah\xb3(\xc7\xfc\x1bo\x05w\x10\x087\xdb\xb7u\x94S\xfay\xfdV\xfa\xe2U\xaa\xe6\xc4\xd7)\xf2V\xe0m\xa8\x1f\x84\x08\x94\xd2\x8f\xba\xce\'r\x05\xc5\xbe\t\xf1c\xc7 \x1e1\x14R\xe8\xfaw\x96\xf3\xd4\xec\xc7\xfc\x16:\xa6%6[\xcbF\xe2E\xc6\xe7\x13\xb8_\xf5\xa8\x0b\x8f\xbf\xd3\x11\x84n\x0e\xe7E\x8a\xee\x013\x0c\xf7T]k\xf54\xb4\xd1\xbay\xd1\xd8\xf9F\x8a\xb6\x92\xcf\xf9\xa7&lt;\xb2\x98\xee,|\xa9\xb48\x95*\xd7\xbd\x94\x94\x9e\x00\xe58\xf7M\xd2~\xbd\xa8\xf1Q\x1e\xb3\xd5\xa6P\xa8\xd4\x08\xd8f\xc9\xab:\xb9\x10\x91rHm\xc2\x85*\xc6\xd6&gt;\xe4\xf2\x00\xfb\xe3\xd7\x9c\xf3\x05j\xb4\xc3\x89\xc8\xd4\xb599\xb4\x87\xa2w\xae\xb6\x81\xb1\xb5\xd2\x01\x04\x11\x7f\xbf\xd0aX\xd4\xac\xaf\xd4\x15_5*mER\x99\x98\xb5\xa7\xb9\x1e%;o\x08\xb1\t!\xb4\xf8\xda\x10\x05\xcd\xf8\xe6\xf8\x9c9a\xae\x9d\x9f\x93-\x06@\xc7\x1aE\xd8\xfe$\xdf\x99r\x7fZ\xf9\x11\x973\r^\xa9\x95\xb5N$r\xa3.\x9a\x8a\x82URH \x15\x16\x83\x81+W\x03\xc0R\xaf\xe0$\xf8\xc7\x9fK\xfa\xa5\xd3\x95\xe7\x055M\xa7\xcf\xa2&gt;\x12\x18\xa8\xd2&amp;\xb2\xa6^\x86\xe7\x956\xb4\xaa\xcaIO\x9b\x1f \x8ck\x9a&gt;\xce\xb1dI}\xec\xd4\xf3\xaf\xd2\xaa+\n\x98%\x02V\x1d$+w\x06\xe1G\x9e\t\xf96\xc6\xc9\xaf\xd9;K\xf3\xfb\x11sL6[j\xafIJO\xf1\x055\xb9il(+aX\xe4&amp;\xf7\xe3\xc5\xce#f\x07\x8dh\xca\xfc\xab\xba\xfe\xb3\xc1\x8c\xa6R\xd4\x88\x95\\\xb6\xd4\xb7j\n\x93u+`I\xdc\x05\x8f76\xbf\xc7\xc7\xd7\x19\x0c\xbd\x98Z\xacf\xb6\xd1)\xa7[\x8e\x15\xf9I$\xa1+W6\x05A@\xda\xe9\x1f\xbf\x8ey\xc41\xa4\xb9\xbe\x96\xd6S\x87\x97\xe32\x8e\xca\xa1\xac:\xb0\xaf}\xc96\xe4|\xf2x\xf8\xbf\xdb\x136@\xafF\x93SN_\x9d\x97\xd7!\xc7]\x1274\xad\x8el\xe7\xc0\xdc\x9d\xa7\x82H\x06\xe3\x92&gt;\x06;Pf\xb0n&amp;\xd6\xaf\xb4L\x93r\xa4\xe8y\x92Um\xb8\x19\x95b\xa0\x86\xd7H\x89\x12\x1b\xa1N:V\x82\xda\xb6!\x02\xdd\xd5&lt;\xa2\x908\xb9&gt;~qe=#hK]&lt;h}/O\xddm(\x9cJ\xa5\xd56\xbb\xbc\t\x0eZ\xe8\xdd\xfc\xfb\x10\x947\xbb\xf9\xbb{\xbeq\x0b\xf4i\xe9K\xa3\xbd3\xe76\xb5\xaavc\xaf\xd7s$\xa4\t\x8eG\xacJ\x0b\x8d\nc\x89\xdc\xea\xd0\x8b]D-J\xdaT}\xbeG \x10\xda\xa4\x0b\x02?\xa65x\x98\xe6\xa5\xdbw\x99\xdc\xdc\xb1~\x95\x06\x94\x7f\xb9\xf7\x06\x0c\x18r#\x0c\x180`\x840`\xc1\x82\x13\xe1\xfa\xdf\t\xa7S\x1e\xbc\x1e\x97=5f\x9c\xc1\xa5z\x8d\xd4\xed99\x92\x8d\xde\x8d.\x99\n\x9b*H\x12R\x8b\xf6{\x8d\xb6[*\xb9\x00\xd9\\\x1f8\x88\xbdy\xfdX\xa2t\xc3\xa7\xeft\xa9\xa0y\xd1\r\xea&gt;d\x8cSV\x9b\x05\xe0\\\xa1AP\xe4\xdc~\x87\xdc\x06\xc9\x1eR\x9b\xab\xe4c\x9e\x86tt\xebf\xbc\xe5\x0c\x8e\xedP\x99\x95\xac\xd3\x11\x95\xbf \x15\xa9\xd7\x1cx\x05\x02U\xe4\xd9D\xdf\xc7\x17&lt;\x0cHja\x8e\xd6\x9e\xc2/\xfa\x85\xfdR\xd2;\x99q\xda\t\xa1T|\xf1\xd2j\xe5T\x90\xec9\xd9\x80\xcd\xadD\x91b;+\x98\\\x90\x08\xb8\xf1g\xb6\xf1\xf0&gt;p\xbei~\xa3\xd5\x11P\x9b\x92\xb3|\xa8\xf4\xea\x8d\x1c\xaa&lt;\xd8\xaf\x92\xb0\xa7\xbb\x89I\x04\xdc) \x04\x12\x0f7\x04rop\xf0\xd3!\xc7\xc99\x12\x97\x92\x19p\xa5\xaae=\xa8\x16\xf9=\xa4\x04s\xf7;qZ\x1e\xa1:e\x99r\x06\xa6\xcc\xd5\xdc\xac\xd2\xae\xe4}\x93c0\x94\x86\xe4\x92lV\xa2\r\xf9\n\xdex\'\xddo\xb8\xc4\xde}\xd7\xe2n\x1d\rT\x8dI\x8a\xbe\xf4Y\x11\xa1\xa5\x9a\xc3]\xba\x85Em\xc9@^\xd5\xa4%\xa0\x9by\xfdEA6\'\xe8O\xd2\xf9\xfd1\xd3l\x93P\x86\xcd5\xaacj\x08\xdb\x1dKq\xd5\x82\xda7,\xa9+\xf6\x92\xa0\xa3\xe4\x8f\xa8\xfa\xdcV\xfc\xee\xbc3xv4\x97\xd4\x05F$\x8b\x87\x14\xab\xb2l\x08\xdb\xb0$\x90\x08$\\\xa8\xff\x00\xa8\xc4\xfb\xd2\xe7\xa8\x06]r\xac\xfc\n\xfc\xd8M\xbd&gt;&lt;\xa7K\x12T\x84\xa5\xf5\x06\x94\xabo-\x92\x85\x12\r\x82\x8aE\x89\x07rT\xa0Y\xa6\x82\xbc\x11+\x1f-@\xd0\x8e\x9d"\x97H\xc8UYt\x82\x86\xd8ZYvK\x85\xe6\xcaZh\x02\x94\xa17\xdc\x01I\xfb\xed&lt;\x1e=\xd71\x9e\xabk&gt;\\\xa4T\x9b\x99O\x8fg\x83\x008\xebO)d\xbb\xb57&gt;\xe2M\xc8I\x00|\xdf\xebkj\x1a\xf3\xd4^P\xa9~.m\n\xbfL\x12&amp;\xaaBV\xc3\x0e/s\xc9L\x87T\x95\xa1a6P\x08Kj\x1eE\x9d\x04\xf2\xd8(Uk\xda\xd6\xedc5\xba\xdag?\xd8K\x88%[\xca\\\xed\xed\x07\xdc@\xf3m\xdc\xdf\xff\x00\x1f\x1c\xe3\xb7uU\xf6\x08\xd5\x19\xfb_\xa8\xc7\x12\x9bZ\x9f\xa9Y6e9\xf9\xb2\xc4\x96\x18K\x8c\x94\xc7;T\xe07\xb1Y\x1eT\x12-r\x00\xe4\x9b\x81\x8f\xde\xbd\xd3\xf6]\xcbYbT\x9c\xd14\xb0\\\xa5\xb8T\xcb\xe3\x9d\xe0\xddm\x94\xda\xeb6\xfb\x11a~x8\x8a\xbaj\xd5\x8a\xddk;\xd3\x1a\xcc\x90d\xc5\xa7N|S\x90\xa5$\xba\x86\x88\xed\xf1\xdbO.\x0b$\xa7m\x8f\xb8\xf3\xf1\x89o\xa8\xede\xc9Y&amp;\x82\xc9\xcd\xd3\x9b\x9c\xb6\x1a*\xa7\xb0\x93u-h\xee\x8d\xd76\xdcOkj\x94n=\xf6\xb06Q\x9a\xaa\x85\xb4\xec\x8ebw\xe6\xf5\xdb\xc1\xe2jyV\x0bYC0Kn`K\xabRR#\xa47`\xa2\n\x0e\xeb\xdcx\x03\xfb\xdb\xf7t\xbd,\xf4\x9e&gt;\xb5uWM\xa8\xc5\xa6%\xea6YaU\n\xaa\x96\x06\xce\x14\x92\xca8&amp;\xe1N%\'j\xadp/kb\xb8\xb4wS+:\xa5Zk/e\xc7\\q\xde\xfaK\xee\x02V\x88\xec\x90\xa0\x92\xb5\x80-\xb5?7\xf8\xe0\x1b\x01\x8e\x83=.z]\xa2\xf4\xd9\xd2\xc5\t\xc7!\x03_\xcd\x10\xda\xaa\xd7%\xac{\xd6\xa7S\xb9\xa6\xf9\xe4\x046R-\xf0J\xb0zu\x02\xcb\xcb\xf8Y\x1eVAZz\x07\x98\xc8\xe0\xc1\x83\x1a)Q\x0c\x180`\x840`\xc1\x82\x13\xe0\xddo\x18\x88\xba\xd8\xea\xebN\xfa(\xd0\n\xd6\xb6\xea\x04\xe6\xc1\x89\x1c\xb7H\xa7o\x1d\xc9\xf2\xd5\xc3m y#q\x05G\xe1 \x9c/\x9e\xa3\xde\xbd]\x11\xfa{&amp;FG\x91\x9a?\xcf\x9a\x8c["\x1eE\xca\x8f%\xe7\x1b_\xc1\x94\xf0\xba#\'\xeb{\xab\x8e\x13\x8a&amp;\xf5\x1f\xf5\x80\xea\x17\xd4\x1b&gt;$\xea\xd3\x10\xe84\xfa2\x92\x98\x19N\x92\xe2\xd4\xc4 \xbb,\x15,\xdf\xb8\xe1\xb7*\xfb[\xe9\x89\xa9\xa4\xda\xdf\xb4S+)iC\xd3\xcb~$Y\xd4\xa6\xb3\x0c\xfd\xab9\x8fY\xf3UA\xd9y\x8f3V_\x9fR|\xa9N+s\x8a*\xb5\xcf\t\x1e\x00\xf2l\x065\r,\xd5\xa8\xda}\xab\x19_X\x9b\x80\xe4\xa5\xe5\x8c\xc7\n\xad\xf8d\x1b)\xe1\x1d\xf4:R/\xc5\xc8I\x1c\xf1\xce5:\xcdej\x92\x1c\x90\x90\xe2\x15\xcd\xc7\xdf\xff\x00w\xc6\xafR\xabK\xa3\xcfP\x89\x05\xe56\xa3pG\x08\xdap\xf5\xdf]f\xb1\xdag\xf1\xac\xb8d\xfb\xa4\xf2\x0e\xe7C\xb5l\xf1G\xcfy&gt;\x0e\x7f\xc9\xb3\x116\x99Z\x84\xcc\x98\xf3"/zV\xdb\x88\nm\xe0G\xf2\x94\x94\xf3\xf7\xfb\xe1}\xeaF\x80\xceq\xca\xd2\xe2Jgq1\xf6\xb9\xb4[\x8f\xd8\xf3\xf2x\xbf\xc9\xfbb\x1b\xf4j\xeb\x01\x19\xd7I\xdf\xe9\xdf2\xd4\x02\xea\x19U\x1b\xa9!\xf7\xbd\xd2\xa9\x8e,\x80\xdaA7=\x95\x1e\xd9\xb0\x01(S rM\x99\x8dS\xa6\xd3\x11Hu\xf0\x82c\x91\xc3\xaa\x1c\xb2~\x8a r&gt;\x8a&lt;s\xcf8\xf9\xbeEVQ{+x3\xecX\xce\xb9\x98K`\xecD\xa6\xce\xa6\xf4yy\x136\xb9*\x14u\x88\xaf\xa8\x94\x85\x01\xec77\x04\x8f\xff\x00s\x88\x9c\xa1\xf6\\D\x98r\x16\xd3\xad8\x16\xd3\x8d\xa8\x82\x85\x03pA\x1e1b]Ih\x9as\x0b3\x1c\x91M\\\x84\xaa\xfb\x02\xaeU~M\xc7?\x16\xf1\xf1a\x84GR2\x82\xb2\xa6br\x9e\x84\x94\x00/n\x7f\xe7\x0f\xe2\xdd\xd4:I\xe6Qf\xe2\xfbm1\xc3P\xb5\x111\xfbNf\x87\xdd\xda\xca\x9bmN[rR\xa1b7\x0ey\x16\x07\xeba\xf4\xc7\xe3\x1f=j\x12$\x99\x8b\xae\xa9N^\xe5DX\x9e-\xf09\xff\x00\x9c~l\xc7.\x1b\x01\x7f\xdb\x19\x8a\x06Q~\xaa\xfa[&gt;\xd0O\xba\xff\x00L4\xf6*.\xccDT[\x89\xbdi.\xaek\xf3\xec\xa5\xbc\x92P$Epl\x9c\x94\xaf{b\xe0\xedJ\xb7]$X\xf2\x08U\x94nO\x04JZk\xd3\x96\xa6\xea&lt;\xa7*:\xb9\x9e\'\xbf\x16R\x96\xb7\xe3\xb3!h/(\x9d\xc7z\x81\xe1$\x9b\x94\x81b@\xbf\xc66\xde\x944\x86\x91G\xa5\xb1.\\d\x05?\xeeXU\xed\xc0P\x1c}n\xa3\xfe\x98`dP!\xc2-1\n\x0e\xd2\x05\x94\x10-\x7f\x1f\x1c~\xf8\xa9|\xcb\x9c\x90\xa7B?G\xa7\xa6\xc1#fn\x9d*h}\x1e\xbb\x9ah\xbaW\xa6\xd46!\xb1&gt;|Zkm\xb0,T\xf4\x87\x10\xc0qJ\xe5J)\xdd\xb8\x92o\xb58\xe8N\x95N\x87E\xa6G\xa5Ah!\x88\xac!\x96P?\x95\t\x01)\x1f\xe8\x06)[\xd2\xce\xb7\xa6Y\x17\xac]&lt;\xa6j=Y\xa8\xee\xd6jr\x93F\x0f\xb9\xb5\x0eKLU\x86\x93\xcf\x9f\xcc[v\xf8\xdf\xb3\xe9\xc5\xd9\x0b\x11\x8b\xefL\xac\xa6?Q\xf3\xccO\xd4Y}\xfe\x85\xec8\x9fp`\xfd\xf0b\xce!\x0c\x180`\x840`\xc1\x82\x13\x87\xfc\x94\x83/Y\xe3\xd0\xa4)N-\xb9\xaaT\xd9\x0f,\xadr\x14\x91\xc9Q&lt;\x9b\xdb\xc9\xc6\xbf\x9ckSW\xaa\xf9\x89\x1d\xe5Y\xe7\xca\xd5~yI\xb0\xfe\xca80a\xf6\xfb\x07\xcc\xa1\x1c\xde~?\xeaf\xe9\x12\x05J\x80\xda_\'qN\xed\xc1 s|z\'S\xdb\x91O1_*(@\xdc\x00Y\x1f\x180bu\xed\x14\xff\x00\x91\x9f4oSsf\x83\xeaM\x1fT4\xfer\x99\x99M\x90]\r)gd\x86\x8an\xe3+\xf3\xedZII\xb7#\x82\x08 \x11rY\x1bS\x18\xd4}?\xa3\xe6\xea|W\x99j\xadK\x8fQ\x8a\x87\xc8\x0bm\xb7[\x0b\t6&amp;\xca\x01V\xe0\x91\xe7\xce\x0c\x18\xc7\xfa\xea(\xb8\x1dO\xa3\xff\x00I\xbb\x9cF\x04\xf1"Ma\x8cb\xb1f{`;\x1dN\xfe\x1f\xb6\x0bN\'\xb4\xb5\xaa\xe3\xf9\x15d\x11\xed\xf6\xf8\xf6\x8b\xdc%}A\xe9\xad+82s\x95!}\x85-\xad\xe5\xb7\x876\xfaq\x7f\xae\x0c\x18\xa5\xa0\x9ftK\x1c\xc1\xc4\x82\xe1@Dk$\x9b\x80\xbbq\x89\'J\xa1C\x91Za\xb7\xda\xbf\xf3&amp;\xc3\xc1\xbf\xf7\xc1\x83\x0fe}\x92\xa6\xaf\xba7\xda[\r\xb8r\xe1\xd3b\x00P\x12\x12\x14\xa4\xd8\xde\xd7\xbd\xb9\xbf)\xfe\xf8\x94\x18\xdc\xfdQ\xa7\xdcuG\xba\xbeJ\xd4U\x7f\x16\xe0\x9b\x0f\xe9\x83\x06)\xd3\xb4\xbb\xa0q\x14\x8dm\xea#;\x0e\xbd\xaa\x11\xb2\xa5I\xfa{Y\x0e\x97\x025\x10\xb6\xe1IL\x80\xea\x1fT\x8b\\\x80\xb2\xe3\xc5;\x87;\x1b@\xfbc\xa6\x1fK\xbe\xb1k}mt\xa9M\xd5L\xd9E\x10\xeb1e\x1auUm\x91\xdb\x92\xea\x1bB\xfb\xc9\x03\xf4\xeeJ\xd3q\xf0\xad\xd6\xe2\xd80cy\x8e\x00\xc1\xab\xe2cn$\xe6[\xf3\x18\xec\x180c\xd4\xf3\x0c\x180`\x840`\xc1\x82\x13\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45489</v>
       </c>
     </row>
   </sheetData>

--- a/data/manager.xlsx
+++ b/data/manager.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67215277778</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67215277778</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67212962963</v>
       </c>
     </row>
     <row r="5">
@@ -545,379 +545,337 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67216435185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>784639</v>
+        <v>784663</v>
       </c>
       <c r="B6" t="n">
-        <v>1966</v>
+        <v>5981</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eduardo Coudet</t>
+          <t>Tite</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x00&gt;tEXtComment\x00xr:d:DAEewil2SDw:3080,j:6710763804814539589,t:23082100*\xd8y\x9e\x00\x00\x04\xe5iTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n        &lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n        &lt;dc:title&gt;\n        &lt;rdf:Alt&gt;\n        &lt;rdf:li xml:lang=\'x-default\'&gt;Elabora\xc3\xa7\xc3\xa3o de fotos - 8&lt;/rdf:li&gt;\n        &lt;/rdf:Alt&gt;\n        &lt;/dc:title&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n        &lt;Attrib:Ads&gt;\n        &lt;rdf:Seq&gt;\n        &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n        &lt;Attrib:Created&gt;2023-08-21&lt;/Attrib:Created&gt;\n        &lt;Attrib:ExtId&gt;9ef58779-1aa6-45f1-8de7-294d0770f4be&lt;/Attrib:ExtId&gt;\n        &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n        &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n        &lt;/rdf:li&gt;\n        &lt;/rdf:Seq&gt;\n        &lt;/Attrib:Ads&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n        &lt;pdf:Author&gt;Jo\xc3\xa3o Izzo&lt;/pdf:Author&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n        &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n        &lt;/rdf:Description&gt;\n        &lt;/rdf:RDF&gt;\n        &lt;/x:xmpmeta&gt;\xb0k-\xb3\x00\x00\x03\x00PLTE\xff\xff\xff\xff\xfe\xfe\xdb\xde\xe3\xd8\xdb\xe0\xdf\xe3\xe7\xe1\xe3\xe8\xd4\xd7\xdd\xde\xe1\xe6\xdd\xe0\xe5\xdc\xdf\xe4\xd7\xda\xdf\xda\xdd\xe2\xd6\xd9\xdd\x1c\x1b\x17\xd2\xd6\xdbgRF\xd1\xd4\xd9\x15\x16\x13\xd9\xdc\xe2bPD\x19\x18\x14\xcc\xce\xd2\xcf\xd3\xd7\xcd\xd0\xd4\xe1\xe2\xe6 \x1e\x19\xca\xcc\xd0\x18\x1a\x1d\xa7xX\' \x1b\x9brY\x12\x12\x11\x97oU\x93mT\xfd\xfd\xfd\xb0\x83j\xe2\xe5\xea]MC\x9bv_\xa8zb_K?\x8fgMnTF\xcb\xcf\xd5\x95jP\xf9\xf9\xf9\xe4\xe7\xeb\xac}f\xbc\x88q\xc5\x93|ZI&gt;\x90kP\xb9\x80hdC1R&lt;0\x9fu\\\xe6\xea\xee\xc5\x8fylQA\x8afLdL?\xb4}gB92\xa9|[\x15\x17\x19\xae\x81i\xa0x_\x9alQVC8\xc1\x8cu\xd5\xd9\xe2w]O\xcd\xd1\xd7\x9dnVwXG\xbb\x83mrZMqVHH=6|ZHK9/bG9SD;\xf6\xf5\xf5\xa0qY\xac}]\x97s_\xb3\x88o\xdb\xdf\xe6\x96q[\x8caGVH@\xa3vVC."]F80\'"U?3\x8ahT\x87`G\x91o[\x82X@"!\x1f\x9epQ\xaas_- \x19\x84cL\xc6\xca\xcf\x85fT\xa7~eiM?\xbc\x8cu\xa5x^\xc9\xcc\xd2xRBpM?+$\x1fiH8\x1c\x1d\x1e\x80`K\x91bR\xb7\x87p \x19\x14oL6^;)\xc7\x96\x80{]MLC=\xbe\xc1\xc6\xa4u]\xafwb\xb6\x8at\xb5\x83l|aQ\xc1\x93~\xc1\x90y\xaf\x82aJ4)=1(\x89aQ\xa1sT\x82`Q\x9ffT0.*:+#(\x1c\x16|W@\xbe\x8fyuM9\x84YFY&lt;*P?6lWKiG2\xc3\xc7\xcb\xb2\xb0\xb15$\x1c\xd5\xd7\xdaC4,\xa3{b\x9ahY\xcd\xd2\xda\x96gL\xd0\xd5\xde\xc7\xc8\xcc\xa7pV\x8elW\xc4\xc5\xc8\xc0\x8bo\xbd\x86l\x82^E\xea\xec\xefuUC^A,\x9aaP\xa6n]6/)]&gt;1\x89ZLq_U\x88\\BQ7*\xa4jX\xf1\xf0\xf0;5/\xbc\x92\x81\xb7\x8d{\x9d\x9a\x99\\B3\x91cI\xbc\xbd\xbfwS;\x96\\L\xea\xe8\xe8TLG|{|gWN\x95gW\xd3\xd3\xd4~U;|cW\x9dzfC?;c?,V7\'&lt;\'\x1d\xb4\x87i\xc4\xc1\xc1\xab\xa9\xaa}TG\x89j\\\xba\xb8\xb9\x8bL=\x8d\x8a\x88\xa2\xa1\xa2h]V\xac\x84t\x91hT&amp;((O2%qjf\x7fJ:\xb8z_GHH\xc5\x99\x84\x89TDpF&lt;\xcc\xcb\xca\xdd\xdd\xdf\xb5\xb9\xbd998|h]^TM\x90XG\x9e\x92\x89\x95\x93\x93\x94\x85{\x9chKpE2\x88ulUTSgdbzB1\xa4\x81m^^_I*\x1d\xda\xda\xdb~nf\xac\xa2\x9a\xb9\xac\x9d\xd5\xc1\xbc\xaa\x86i\x8b}u\xc3\xa1\x99\xe4\xd6\xd3\xe9\xdd\xdb\xc9\xb4\xac\xb8\x1c\xf7\xd6\x00\x00 \x00IDATx\xda\xc4\x98\xedOZi\x1a\x87\xe5\x0f \x13\x12&gt;\xf4\xa4=\xc8K"b @-\x12\xb4\x92Rj6\xe8\x8c\xc5\xc2HJ\x96\x1eKa\x07S\x07\x82`\x0b\x8cm\x10\n\x0b\xc69\xbch\x8d\x91\xb5\x13\x93\x99\xe9\xaa\xdb\xc1F"h\xad\xb1d\x9d\x91\xd5\xb4ic\xe3[\xa2\x9b6&amp;\x1b\xbfh\xea\xfa}\xef\xe7\xa8\xb3\xfb}\xc1\xde1G^L\xce\xe5\xf5\xbb\x9f\xfb&lt;\xe7\x94\x95\xfd\xdf\xc5\xa5\x89\xb8\xba\xa3\x9f\x17?\x9e[\x98\xe6\x96\x95\xd1h\xb4\xb2\xcf\\\xdc\xe9\xe9\xa3\xd7of\xf7fW\xf7w\xb7\x0f\x0f\x0e\xf2{\xc3G\xd3:\xee\xe7\xe5\xe2r\x17fW\x0f\xb6I\xeby\xab\xb5\xab\x8bN\xef\xea\xb2Z\xc9\xfd\xfc\xec\x87\xe9\xcf(\x8c&amp;ZX\xdc\xdb\xdd\xb0\xd2\xaft\x01\xd3\x15\x06\x83q\xe5\xfcy\x00\xb3n\x14\xf2?\x8b\xca&gt;\x13\x19Mtn\xf6\x90\xa4\xd31\xc4\x83\xa0\xca\xcb\x19W\xca\xcb\x99t\x0c\xc3\xac\xbb\xf9\x0f:\xda\xe7Q\xf5r\xb5`e\x963\x98\x88\x07A\x95\x1f\xfff\xd0\xbb\x80\x8c\xbe={Nt\xe6P\xb4\xe9\xe1\xad\xed\x8d.:\x85T~Z\xc8\x19\x80\xd2\x99t\xf8!\xb7&gt;\x88\xceX\x98hav{c\x03\xa3_\xa1\x14\xfd\x8eE\xc9b2\x10\x14\x94\xf5\xf0\x9d\x8e{\x96T\xba\x0f\xf9l\x17\x9d\xc9&lt;M\xee\xbfL\xf0\x92\xc9D\xb2\x10\x98\xb5\xf0~\xe1\xec|\xd1to\xb6\xadp\xe6\x93\x86b0\x8e_@~L\xf4\x19\x83\tP\xf0=\xea|r\xeb/g5\xc3\xb8\xe3{\xbb\x88\xea\x04\x8b\x81\xa4\x9d\n\xc30J\x13\x84\x88\xd11+f\xc5\x89\x83\xc53i0\x1a\xf7\xdc*i\xc5N\xc4PXt\x8a\x8bq\xc2\x05\xd9a\x08\x8c\x89Y\xad\x18\x86\xbb\xce\x86\x8b6\xbe\xba\x81Y\xe9\xcc\xdfm1\x99T\x9c\'\x98\x00\x894\xfd/\xd7\xfe;\xd1\x19\xf4\xd5\xec.\x9d\x8a\x8ay\xdaI\xccc\xc4\xe3w\x0c4M\xa9\x8eG\x9fS\\xaXW\xf2\xc90\\\xc0\xa8\xa9\xe4\x85\x02\x12\xa6\xd7\x0b/\xe1\xe8\xc5\xe8\xa7K\x10d\x01$\x1d\xa3\x84\xe1\x00VxS\xe2\x1cE/\xb7]t\xa6\x172\xf2z\xe3\xc0\x12\x8f\xdbR6\x1b\x1cm8\x8e\xa3\xe80\xaa\xed\xd0\xe8\x02i\x14\x98\x0b\xc7\xf0W\x1fJ:\xbf\xb8\x8b\xfbV+\x9c\xd0\x0b\x8b\x1f\xb7\xd9l\xa9X,f2EL\xb6T\nq\x81\x19\x0c\xa3F\xd6q\x94\xa8\xc30\xe0\xc2\x89\xad\x8f%\xd4E[\xc8\xa3y\x84\xfe\x7f\x1cHR\xa6LMf\xf3\xf1r&amp;\xb2\x92ZYI!.d\x10\xf2\x04$\xd4~\x88\xd2\x0bMO\xb8\xd2\xab\xe3\xa5\xe3\x9a\x86v\x07*\xc2\x05\xa6R+&amp;\xd3c\xd9\xd0\x90\xcc\xed\x1b\x9a|l\x82w1\x1b$\x1aGE\xd9\xc4(}\xc8 \xeer\x11\x85\xf7%k{\xdd0\x1a\xeex,\x8a\xe3\xa9T\xcc\x94\xd9\x1c\x9a\x9f\xefO\xcc\',\xfdnY\xc6\x14\xd9\x84,A\x1a\xe4\t\x85\x8c\xa2\\]\xc7\\\x04\xb9=\\\xa21!z\xbd\x0f\xf3\nwE\xa3q\x1b\xb4T\xa6\xe5\x1f\t\x8b\xe5\xd7)\xe3\x94y\xc0\xe7t/o&gt;\xce\x98\x10\x1b\xd4J\xcaF\xb8P\xf3\xe1q\x04\xe6\x85\x03A\x1c\x1e\x95\xa6\xed\x17\xf2\xa4\x95\x0e\'\x18\x89\xc6S\x11SD\xd69d6N\t4j\xb5ZhN$:\'\x97\x97#\xa6\xcc$\xaa\x8c\t\xac\xc1\xfa\xc4qo\x1c\'\x08&lt;\x0e)\x92\xbb\xa5\x89Q\xf4n{\xc3\x8a\x11DTk\xc2W2\xa6e\xdf|\x7f\x9dZ\xa8\xd6\xff\xf1\xc7\x1f/h\x04u\x03\xfd\xb2\xef\x1eonN\xcad\xeeN\xe7\xd0\xf2\xbf#&amp;\x14f\x1c\xf5\x95\x0b\x0e."\xbd\xf5\xb14\xab\x90\xb4Z]\xd9\x98\xb6&amp;\xe22e"\xb2y\xcb\x80\xd0\xaf\xd7\xfb\xfd\x17.|-v\xfcI=:0\xefsO\xca\x9c\xce\xf9\xc4X\xddXg\x06\xb8R\x14\x13\xb4=\xc2"\x1e\x0e\x97 E\xee\xd1!\t\xff\xf2H\xb4\xcd=I@\xbb\xfb\x06\x8c\xf7G\x81\x8a\xcf\x17\x7f\xdd\x13\x0c\xfe\xf9\x9b\x9eo\xf4\xea\xfb\x03N\x8b\xd1l\x1e\x13p8\xf7\xdc\x90%L\xb38\xcc\x0c\x0c\x92\x84\x14\xf3\x0b%\x99\xa4$I\x8eDG^L\xb8c\x91\xccr\xbfejT\xad\xd6\xf8\xc5b\xd5\xa5\xfa&amp;\x89]\xd2\xd4\x14\x04\xb2\xfbsF\xa1\x90-`?y\xc2j\xef\x94m\xae\xd8\x10\x96\x17a\x11\xd9\xfd\x97\xc5_\x8c\xa27\x05\x92L+\xa3#-c\x9d\xa6\xcc\xf2d\xbf\xc5\xa8v\x80-q\xd0\xf3\xf4\xaf\x92p2\xd9 \x91H.\xd5\xfb!U\x07\xdf\xaf\xd6wt\\\x15&amp;\xfae\x9b\xb0,\xe3\x88\xcb\xe5"wW\x8b\xbeW\xa5\xe9\xf2$\x85\xa5\xed4;#\x19\xe8!\xa3F\xc3\x87\x04\xc5A\x89\xfd\xa9$\x1c\x92J\xc3\r\r\r\xf6 \xbf\'\xa8r\x88\xc5r(\xcd\xdcT\xc2\'\xcb\xc0&lt;\x8b\xc3\x8c\xb0\x91\xd9\xc3\xe2_\x82\xc6\xb7\x00+\xaa\x8d\xd68\xe7\x125\x11\xd9P\xc2,\xd4\xf3\xc5\xaa\xa0\xdd\x8e&lt;%\x93a\x84\x15\x0e7H\xe0\x93 O\xc5\x13_\x95\xeb5\xa3FK\xbflr\xd2d\x03_8\x91\xde~W\xe4\x9d\x04\x8d\xf6q?\x9d\xce*\x07#/\x12su-0\xdf\xc7\x8csz\xbe\xca\x13H\x86\xc3\xc9\xa7O\x11\x964\x1c\x96vK\xa5\xc9P\xd2n\xf7\xf0\xa0\xf8z\xb5\xd0hI\xf8|\x7f3\x81.\x1bAf\xf3\xe3\xc5\xbe/|\xfd\x10Q\rj[\xc6\xe6\x04\x9d\x93&gt;\x8bQ8\xea\x17\xf3\x0cv\x00\x02M\x88\x8a\xc2\xea\x96\x86Bv\x89\x87\xc2\x12;4\xa3sH\x18p\xc1\xf5\x92 \xc9\xad\x85"?\x01\xe0\xbe\xdf\xcd*\x9b\x07kjj\xebFG\xe7\xddC\t\x81F\xcf\xe7\xf1\x02I\xc0\n)\xc2\x94(t\xd8\x91\x86\xc2 \x0b\xb8Tb\xbe\xc3\xaf\x81\x81k\xfc5\xe1l\x89\xd8\x00+\xbd\xbfX\\,\x9anU\tX\xd7\x06\xdb&amp;\x04B\xb5\xd9\xd9\x9f\x10\xfa\x1d&lt;\x83!\x90\x0c\xedHQt\xe8\xa0P(\xba\xbbC\xa1P\x18RL\x06&lt;*\xb1\\\xa3Qk4\xa3S\x961\xa7l\xc5\x96&amp;\xc8\xc2\xcb\xe2bq\x17\x0e([m\xb7\xae\x0b\x84,\xe1\xc0\x80Y\xe8\x17\x1b\x02\xf6d(\xb4\xb3\xb3\xd3\r\xd9\xa1\xfc\x80\x0b\x01"\xb0\x90\xdd\xc0S\xf1\xfd\x1a\x8d^\xa3\x9e3\x9b\xaf\xd7j\xd1D%W\x8b;\xb9hG\x87\xbb\x85\xe6\xe6\xc1k\x97\xc7\xaa\xe1L\x02\x81P\xc3\xe7y\x02\x81d\x0e\xb0\xba\xa5\r\n\x84\xa5P4\x1c\xbf\x80\x82\xbe7\xa8Tb\x87^\xa3\xd1\x08\x05u\xe6\x89\x171"\x9d&amp;\x0f\xa6\x8b\xdbZ\xaf_\x15\x94`\xab\xb2\xb6]\x88\x04h\xe4|\xe8wd\x8b\x92EYRP%\rQm\x1f\xca\x05\x0c&lt;\xe4\x0b\xfe\x98-\x10\xd4M\xbc\x18I\x03\xd6\xab\xa3\xe2\xb6\xd6\xfbB\x16\xf5V\xed\xf5:6\x8b\xba\x12\xf2UA\xa0\xca\xe5vNC\x94*\xc2\n\x90\x15\x0eQ\x95K\x1ec\xf1\xc1\x17`\t\xc6\xdc\xdah4\x9d\xde-\xea\xe5\x9a6\x9e\xcff\xb3\xcd7nM\xdc\xabf\xb1\xf5\x0e4\xde\r\x1eO \x97\xa3l!.0\x06T\n\x80\xeb\xde\xd9\t\xe5r\xb9\x99\x80\xc1\xc0\x13\xf3\xf9~9[(\x10\xb4O\xb4E\xb3\xe0k\xb5\x98\x0f\xe3h\x1f\x0f\xb2J\xe5\x8d\xca\xda\x07\xed\x1c\x96\x90\xe5p\xa8`\x15\xda\x93333p~$\x07a5H\xd1J\xb4{\xe0-\xfa\x06\xb0\x02\x01\x83\x8a\xef\x90\xb38\xd5\xd5u\xed\xdfj\xb3i\x92\xccO\x17\x11\x0b\xb6\x0f\x10\xe1\x8d\xca\xc6\xdb\x1c\x16\x8b\xcd\xf2;\xc4\x81\xc0L27\x93\xa3\xb8rI{2\xachR\xc0\xe4\x92\x86&lt;\xc1d\xd2NQA\x01\x18\xafC\xcebWW\x0b\x04\xf7*\x9b\x81\xeb\xa0\x98\x9b\x1b\xb8kE\xb6j\xefq\xd8,9\x0bV\x97\xc3@\xf1\x1cc\xcd\xccx\x02\xf6\x86\x1e)\x12\x96\x14\x8b=\x1e\xc3\xda\xdaL`m-\x00\xbf\xd7x\x1dW\xd9l\xa3y]P\xd7X\xa9L\xa7\xf7\x8bx\xb5\xa6\x89\xa0\xe3\x95\xca\x8b\x8d\xeb,(\xd8\x1a\xa8;\x023\'\xb5\xb6\xf6i\xe9I\x878X\xffKR*\x91\x84\x02~9\x9f\xdf\xb1\xb4\xf4\tUGEkkk\x85\x9c\xcd\x16\xd4q8\x82\xf6\xaa\xe6t\xfa\xd5b\x11\x9fw\xe9f\xd1x\xb8\xdc\x07\x11\xcaY\x15W\xe5\xf2\x8eOKK\xad\xad\x9f\x96\xee\xbc}\xfb\xdb\x1f\x1e\xdd\xbd\xff\x83\xff\x97\xef%\rM\x92d\xf0\x87\xde\xde\xbeG\xbf=z\xf0\xe0\xd1\xdd\xb7w\x1f|\xd5\xd8\xd7\xfb\xd3M6\x87\xc3\xe6\xac\xaf?\xb8\x96N?|]\xc4M\x84n\x0faU\xdd\xfe;\xa8\xaa\xa8`\xc9o\xf6\xf65V}\xf5\xe5\x97_\xdcj\xd3*Gj^t\x9a\xef?\xfb\x1ev\x81M\x12qo\xe7\xb7-5Z-lc\xb57nh\xb5\x83\x17\xab\xfa8P\xebP\xed\x95\xd1t\xa1\x98{\x9b\xe9U\xc0\xba\xf6h\xfd\x07\xb6\xbc\xe2fk\xc5\x9d\xbe\xda[mmmpn\xf4\xe8\xc1\x06\xb7a\xfd\xcf\x9f?kj\xaa\xbf\xd4\xe4\xefu\xba["1\x82\xba\xb1\x80\xb9\x1e\x8bj[\x1a\xef\xde\xe1T\x03V\xef\x17\xd9h\xa1\x98w\xb1\xd3\xab\x0f\x9b\x95\x17\xdboV\xc8\xe5\xac\x9bw~j\xbc|\r\x84D\t\x17\xf5\xacfes\xf9;\xdf\xc0?\x9f\xd5\xd7\xf7\xf4\xd4k\x9e;\xe1\x16;\x82n\x13\xd1V9\x16\x8bF\xb5\xb7\xaan\xdfA\xc6nW\x8dd_\x15\xd5\xd6\x1e`U\x02\xd6U9\xab\xf5\xe6\xdd\xcb5`j$\x1a\x83\x1b\xfb\x15SF\xe6\xf3\xb9\xfb-\xff\xfa\x0f\xabf\xfc\x9aF\x9a\xc6q\xfc\x03\x0e9\xf2\xd3\xc2\xad$\x95:!\xa4\x8cM\'J\\G\x18\xa3\x04\xe3\xa6\xd1\xc6L0G\xbc\xa4\x86\xce\x16\x8d\xa2Ht\xb7\xb8h\'\x97\x1a\x9b!\x97\xd5\xb6\xe1\x8aJA\xd1%7^\xc2f\x9a.\x86\xb5w\r\xdb\xd0\xab{\trk\xaek\xc0\xfcru\xb9f\xc1\xa5wl\xb8\xb4\xbd\xe7\xf5\xee\xfe\x82\x9b\xc1D$\xc2\xfb\x99\xe7\xfb\xbc\xcf\xf3|\xdf\x89\r\'\xa38nJ\xfa\xc1(\xae\x07\xfa\xdb\x1e\x16Q\xad,\xa9\x1c\xc39H\xae\xae\x99\x91\xed\xed?|#\xae\x88\x10\xade\xc0\xd2\xeb\xe9\x99\x9eiK\t4\xdc\x8aM\x97J\x1b\xfd\x81\xc0\xf1\xbe/\x91|\x80\xb1\xa1\x90\x925%?\xe9?\xf6%\x12\xfe\x80\xd5\xaa\xb5N\xabT*Kj\xca27\xd3\xd5\xd9\xd9\x95\xbb\x97Zz)\xe6I\xd7\x7frk\xde\x0eT\ng\xd8\xeaph4s\xb0\xac\x162L\xeb?N\xf8\x12\xfed/\x0ec\xea";\x98\x0c\xdcX;9\xf6k!\x9e\x16\x83f\xcea\xd5:T\xa9\xe9\xf0%\xc0r\xdeK\xe9D\xc5\x1aC"^Y\xa0\xf5^\xbd\xd3\xa5\xb1j{|\xfd\x1b\xda\xbb\xc8i\xfd\xea\xd3\xf3\xcf\x12\x89gk\xab\x0f\xf0E\x18\xb8B\xa6\xd9\xb5\x17\xcf\x12\'\xd6\x97\xbf\x7f\xff\xe7\xef\xbd\xbf2m-\x05\x00Q\xd53\xd3\xd9\xd9\xeb\x94n\xeb^\x8aX\xb7\xa0\x9c\x02\xd6\xe50\xd20w}}nn\xfd\xe4\xceF,u\x7f\xe9\xaf\xef]~\xf2\xf7\xfd\xc4\xfeI\xff\xd7\x0f\xc6=\x17\x8d\x85[\x83\xb3\x89\x1b\x89z\xfd\x87\x7f]\xd9\xfe\x99nE\xa7\x8bml\xf8F5V\xcd2\xa8\xe8&lt;\xaf\xd3}\xfb\x0f\x89\x88X\xbf\x05,\xdd\x10\xad\x06\rs\xd7}\xeb\xbe\xc0\x8d\x17\xaa\'W\xee\x7f\xfc\x9b\xe7\xdf\xd6v\xe3\x9b\xb3\xb3\xb3\xaf\xc6\xf3\x03F\xe5\xad\xc1/\xbe\x9eM&amp;\x83{\xdf\xff\xf2\xa3\x8f?J=\xe9x\xf1b\xe3\x93\xd1\xf5@\x00\xb5-\xe7\xf9m\xddw\xe29X\xc9\xb9\x0b\x7fFX\x0b\x08\xcb\xde\x15O\xae\x82\xfb\x0b\x0c\x1f\xfcmz\xea\xb5\xe3\x07zs3\xf9\xc5\xce\xe4\xb5\xa3B&gt;\x9f\xbfumrv6\xb9\xb9\x19\xa4\x9fnlM\xf7\x1c,\xfb\xfb\xfb\x13\xab\xab\xeb\xa3\xd7/u\x99\xec\xe7\x97\xb6\xbf\x13\xafU\x9f\x1b{\xfc\x97Ou\x97uC\n\xb5^v\xa9\xab\xf7j\xf2j2\x99\x8c\xef:\x9da\xdfr&lt;\xb8\x0bX\x93;Y\x82 \n\x95\xf1\xdb`\xc0\x92\xc1\xdd\xccnp~4&lt;\xb3\x1b\x8c_\xfdj\xf5\xf3\xcf?\xff\xe0\x10\xa2E\x9f_J\xfdS\xb43\xd4so\xcfj\x07W\xfe\x8b\xa5W\xbb1Yo/\xec+YF\xb6G\xef\x06\x83\x99\x0ch\xb8\xf3*K\x12G\x04\x91\xbd=\xb83\x99\xdc\x04\xaeL\xa6\x13\xaa\xaf\xc9\xd4\x05\xc3\x16\xb8\x12\xd4\xe2\x15\x1d\xdb\xba?\x8e\x89\x95[c\x8f8&gt;\xe8/Y\x96\x86\x14\xfat\x1a\xbb5\xfe\x0b\xaf\xdb\xad\x87\xa1\xcb\x9b\xc6l6\xa1w\'9;\xf9\naA\x99\xcff\xaf\xbd\xea\xdd\x01,\xc0\xb5\xa9\xd56\x9b:\x9dN{\xf5&amp;\x13\xc2\xa2;\xb6/\x7f\xff\xcdO\xa7b\x0c\xa8\x12\xc9[\x86\x03\xf72\xefhcy1y\xa5"wS\x14\x85\xb9\xddn0\xa86S\xef\xce\x83WB6{d&amp;\x10\x16\\6\x9b\xa9\xfdB3?\xeeN\xe3\x18\xd8\xeb\xdeAh\xf2R\x9df\x19x\xdf\x89P\xe8%\x92\xd3j=c\x8b\xd8\xe7\x96\xa0@\xa41\x98\x96\'\xa8\n\xfa=\xd16\x11nu$\xc2 \x18\xb2@\x90\x8c\x90e\x18&amp;J\x82\xa1v\xe38N\xc1l\r\xb7 \x07\xaeA\xd0Qq\xaf\x14\x0f\x96y\xae\xf6X\x1c\xac*\x9f\xb1\x99\x86/?\xddK\xa7\xc1\x86M\xc8\'*\xa1J\xa5B\x02\x14\x05\x8b\xb7\xb5\x13\xb2\xa4\x92\x88\x169\xa1\x18\x05,\x82\xc4\xe1\x8fr\x14X\xf4\x86\x8c\x06\xc8\xb87\xa41\xf1\xe5f5\xf3\xe6\xff\xcf/\x10\xb1\\\xe5"x$nx\xba\xa7\xd7{\xd1:\x95\x8a2O\x00\x0b\xcb\x92$l\xc0(\x93-",3Y\xe4x\x01\x85\x8b0\x9b\xcd\xf0C\x14\n\x80\x0fh\x18\xa66u*\xf6\x9e\x0e\x9b2|\xa3\xd5\x14\x05\xeb1W\x1506r\xd8\xb7\x00U\x1e\xb2\ncH\xe5\x80\xb1pttT(\x10\xe8"\xa3\x8c \x14a\xd8"\x19\x8e\xe7\x8a\x0cC\xb2\xe6\x02\xda\x97P2\n\x85\xbc\xb2\x82\xa4\xee\x05\xac\x83Q\x1bf*\xb7\x8ab\x9c\xdbH\x1ef\xaaEPipn\x01\xe6r0\x88B\xb6b\x1c\x80\xd2Y(\xc0\xe2\x05\xa52\xc4\x02\x0e\x87\xa43G\x856W\x14\xb8\x08\xc06\xb7\xbf\xa5\x0cA\xbc\xdc\x83\x9d\n\xc5\xc2\xa8\x97*\xf2\xd5G\xa2l\xc5\x87B\x95\x13\x98\xa8I3d\x97\xc9\xbc8&gt;.W\xa2\x82\x9e/\xc0\x92y\xa3\x11\xb4c\x04N@\t\x05q\xe3x\x1e\xbeL\x9aQ\xb8\x8e\x08#\\y\xe5\xcd\xd0\x04\x95\x86\x8c\xa7\xc3s\x83L\xb6\\=\x13\xe3\xdf\x10$\x0f\x19\x84\xc54\x1d#\x10-/\xe4|\xe8\x7fXy\xe3\x80\xd1H\n\x08\x05\x91\xb4\x0b\x17_.\x979H\xae\xb6\xcaG\x88;\x84\xf6nZ\xd6\xa5\xa0?\xd4\xde\xce"\xac\x0bb`\x8d\xd5\xaa\xb0p\xb3\xb5\xd1\xe3T\xc8\xf4\xc8\xe6{\x08\x02\x90\x8c\xe8\xc8a\xc0,4\xcae^\x88\xb6\x93\x1c\xb2\x9f+7\x1a\r.j\x06\x1f\x04XD\xc1lf\'Pn)\xec\nz\xa44\xe8\xe5\xca\xd5w\xe2`\x9d\x95\xcb\xd5r\xb3\xe5\x97\x1e\xd025\x16\x89\xc8Y\x92\x80@\xb5O\xb3\x8cL\xb5^\xe6\xf9b4\x84\x043\xb2\x90\xf4\xcdf\xbd!\xb0J\xa3\x12\xc9h&amp;\x18\x06\xa3(\xa8\x0fv\x9a\x96\xdeip\x02_&gt;\x15e\xe4\xbap*\xf0\xd5j\xb5q]\xfb\x94V\xcb\xa0\xdf\xe0\xd88\xa1\\DT\x03\x03\x04\xdf\xaa\x97\xa1Z\x01\x97\x07\xdck\x08J\x04_\xae\xb7\xcaQ\xa5q\x11m\x08\xb39\xca@\x80\xf5]\x9dv\xda\xd9\xbd\xd5(s\\\xf1\xad8\xad\xfa\r\xc3\xd7aq\xbbv\x88\xa6e\xfa\x08t\x14(^\xbf\xbe8\x00\xee\xde\\\xac\x9e4\xb8b1\x92A\x85\x81a\x8a\xd0\xa29\xbe~\xd2`\n\x030\x15\xe6\xd1\x86\x88B\xc9\x07\xc3o\xb7\xbb\xfa6\xaa\xcd\xa6(E\xbe\xfd\x10\xea\x11\xdc\x7f\x8bWt\xf78a(\x90\xd90\n\n=\xc2\xba\x98\'\x84z}\x93\xe7\x92\xc7\xbex0\xc3g2\xc1M_\xa2QN\x9e\xd49\xc2\xb8h\xcc\x1b=J3\x81y\xbdz\x19\x18\x0cg\xb8o\xae^m\ng\xe2\x9c%Ar\xf1\xd5V\xabIwk\x0f\xc0\xfb\xc8d\xe8)\x81\xf2":\xcd*\x10L\xa3\xd1,7\x9e\xbd\xde\xd8\xdf\xdf\xf7\xef/\xef[\x9f\xbfn56\xeb\xd5"\xe4\xbc2\xaf\x04\x11I\xaf\x1a\xc6\x07{W.\x17\xee\xf3\xd7[\xcd\xe2\xa98&amp;Cr\xe1\x9d&gt;\x93i\xd6\xe3\x1d\xdd\xae\x1c\xd4\x08\xb5\xde\x8b\x87&lt;(\xb7@\xa2h\xb1\x98\xd9\xf4\x1d\xf7\xfb\xfd\xd6i\x83\xc1\xe1P\xbd\xd8\xa8\xc3\\\xc3\x91f\xa5\x12J-K\xca)La\x97u\xe5\xc0&amp;\x8ev\x1f\xb7ZU\xec\x8dX\x83\xe0i\xad\x86\x15\x1bI\xada\xe1\xc0)\xd3\xcb\xd4^*\xe4\xf1,^\x1c\x00\x85H6\x84\x05}w\xa6T\x86X\xcar\x7f\xc5\x12\x9b\xda:\x0e\xea)\na\xc1E\xe28\x96\xd6+h\x90\xf0R|\xb8;\xd0:i~)\xd6\xa9\xae\xe4M\xad\x06\x969=b\xf8\xd0\xe5T@\x01\x829"\xa4\xfc\xcch,\x10,\xeba\xd5\x9b~U\n\xbc\x7f\xea\xee\xca\xfd\x95\xa9\xe71\x7f\x1c\xbf\x19\x82N\x04m)\xc4R\xb8[O+\xecNg.\xee\xeaq\x04&amp;\x0f#gb\x1dBH\xde\xd6jp\xf7l\xb8O:\x94S\xd0\x100\xb7\x1c,\xf4"\xe4s\xc8S;\x9c\x9f\x03\xe7\x1c\xb3X,}\x86\x98E\x95\x9aR\x1d\xefR7Cf\xb3\xd2\xe3\xf1\xc8\xa1\x1b\xca\xecN\xda\x9e\x9b_v\xf5\x18|\x02\xa6~\'\x96\x86\x92\xb1\x9fj,K`\xc3\x1d\xd2\xa1\x19\xbb\x02.\xb7\\&gt;\xe1\x01\xac\x10\xeb\x9eY\xb7N[b1\x95A\x85^\x8e\xe9\xd8\x92\xc5\xe1\xeb\xa4Bl\x1b\x8b\x05,\x88\x15\xedt\x8d\x86\xc3#\x9ax\xd4M\x9f\x8a\xf7\x1c\xea\xed\x97$I2\xa3\xd2\x8e!\x97\xd3\x0e`i\x8a\x9a\xf0|\xe6\xf1P\xfa\x19M\tB\xa42h\xa7c*\xa0\x9asL\xad\xa4\x0c\xd6\xd1N\x0cg!\xffn\x86*\xd0\x0e\xf7\x14\xf6\xdc2@iF:I\xfc\xc77\xe2\xf9\xd7\x0b\xa7\xd1#\x92\tk5C\xae\x19;p\xa5\xa9\tt\x8c\xecv.\xf7\x94\xb6\x00\xc7\xea\x1f]\xdb\xda\xb2\xa8\x02\xfe\x80Ju\x17&gt;\xaf\x1eF(\x16\x1d\xeaB\xb4\xf4{\x8a\xdc\xcc\xc2P\x8fV\xdas\x88\xe3\x8f\xc4{\x8e!9\xf7\xf0\x0c\xba\xf0\xf2=\xe9\x88\xcbE\xd3\x8a\xbd\xb4[&gt;\x81\xa8\xe6G\x1c\xaa\x92\xd5\x1a\xf0%\'W\xd7n\xfc\xe9wk&gt;_\x7f\t\x84\x8c\x95\x86\xe32\xf4\xb4\x11\xbat\xda\x9e;\xc8\x01\x95TzO\xbb\x8bE\xdf\x89x\x90$\x91&lt;&lt;\xbd)wI;\xa4\x0b.\xa8]{\xe9\x1f\xc1\xfa\xec\xb9\x16F\xbaQ\xa4|A\xd4}\x1a\x89\xc4WI0\x8d\xfe\x7f\xd3r\x85\xafm\xdbi\x18\xdf83\xd6\xe0\x9f\x99nn?\x1cG\x12N=E\x17w\xa0\x90\xdc\x90\xb5\xc06\x81\x82\x90\xacX\x1d\x85F\x8dk\xc7\xa1\x9b\xcf\xd3\x07\x1bcsW,\x18\xf8C\xea3$\xa5A\x1ai\xd3^&gt;\xa4\x90\x1aJ\xadt\xe5h2\x1a\x9f\x9d\xb8\xbd\x96\xcc.=S\x9a\xc25)\xd8M\x93\x862rIG\xb9\xdb\xbd\xca\xfe\x84\xb3\x7f6\xfe`\x84\xf5\xf8y\xdf\xdf\xf3&gt;\xaf\xfdJ1&amp;0&lt;\xbc \xf2\xc1O?\x81\x08~u9\x94\xe5\xd3\x82\x80\x01,\xba\xf4\xc5\xc7\xffi\xea\x08\xa3\xcd\xbd\xf4\xe3\x8e\x81\x10\xe0\n\x86\x8e\xde\x85F\xb1## \xc6\xbf\x10\xcf\x85\x93w\xf2\xf9\xfc\x0b\xb07w^\xbc\xb8\x93,M\xc6|7\xc7\xc6\x02~r\xf6\xab\x0f?\xb9\xfc\xe9\xc9\xd9\xb4H\xe2\x14\x86\x08\x82~|\xfd_M\x1e)\xb6u\xba\xf7\r\x0cC\x02\xe0:\x11:z\xf9\xf2\xc9\xacH3~\x95\x0f&gt;~\xb6\xde\xeb\xeb\xcde&amp;\x9f=\xabD\xe3\xaf*\xf9\xc9Xo__ \xe0\xcb\xb5C/yb\x16H\xc5\x08\x8a\x80\'Y\xfa\xdb\x7f\x9b=\xa2a\xb3M\x19\x07\xb8\xb8D\xc8R\x89`NT\x19:\x97I\xe6\x9f\xae\x93[;\x9bo6\xef\xfe\xb0\xf9f\x87\x8e=\xcd\x9f\x8f-\xf4A!R\x13\xed\x7f\xb8|4\x94\x16\x11\x81a\x04A`\xc2\xfeR\xd3\xc7\xc2m\xb6\xefL\x0eQ8\x12\xac\xcax\xe2dJ\x14U5\x16\xcdW\xa2\xeb\xcc\xdb\x87\xfb?\xfd\xf8\x06\xd6O\xfb[\xe5\xf5\xa7O\xa3\xf1\x05\x1f\xe3\xf3\xe5\x82\x1d\xed\xa1\x88@\x92\x04B8\x81\xcc\xdbK\xcd\x9f\x8d\xb5un\x98\x9c@\x00]\xe5Hu6\x98 i\x8e\xcf\xc5\xd6\xad\xe5\xdb\xd9\xdc\xdc\xb7P\xbd\xd9\xdf\xdc\xaa[\xbf\xa7\xc6|\xf1\x9cH\x93\xd9`h6E\x1a\x88@\x18\x8e!s\xb5\x05C66\xdb\xf2\x9a\x01t!C\x10\x84T\x96\x17\x85\x94\x14\xb5`\x81\xa5If\x92\'\xee\xc2\xfaak\xab\xca\x11}7\xce\xde\xe8\xed\x8dJ\xb4*\xa6\x82\xc14"\x11\x06\xc1\xc7\xf0\xfar+\x06\xf1lK\x7f\x17\x04\x9c\xc2\xe1\x14d\x8a\xe3\xb8r\x84\x8f\x81\xfbK\x96JW\xa0!\xfb\x16\x1a\xa0\x83\xdf\x8fJ`\x05\xd7\xe37n\xa8&lt;I\xa6\xb2\xd9l\x1a\x14\x8b \x18DPo[3w}\xfc\xb6Y\x86\xef\rqD\x82\xc0\x89\x02G\xc7%\x0b\xd6\x150\xcb\xd7\xbf\xfe\xf8k\xeb\xe5\xc3\xdf]\xbf\x92\xcc\xe4+\xb1^\x1f\raN\xa5\xd3\x1cb\x80-\x84\xcb\xf2\xcb\x96\xcc\x95\xd9\xdc\xdf\x9bu\xcc\x8a\x07B@\x96@\n(.\x85\'G\x92\x8f?\xff&lt;\x99/\x01\x9c\xd2\x17\xe0\x80,\xc2\xf2\x95\n\xaf\xfa\x19\x81\xe3\xe18\xd8\x87\xf0\xa4\xf4\xc2Tk\xa6\xf0:7^\x17\x11e\xa128!].\x0bb*\x9b\xa9Lf\xf2\x99|4\x1a%c&gt;:\x15\xacf\x80\xbf\xe4$\xc0\xf2\x05\x16D\x10R\xce\xb0\xe4\x01\xc3p\xed\xf5\xf3\x96\xa0\xb2\xa6\xac\x8bE\xd8Q\x86\xc5\x16DG\x94\xc0\xdcM&amp;\xa4\xf3\xd1\x98\xaa.\x04\xd8@\x1f\xc1\xa8\xa4$I\x95\xa8T\x91H\xbf\x0f\x01U$i\xfc\x9c\xf0-\x8a\xe1\xc1\x7f\xc3kx\x03\xc3\x8a\n^\xe6\x04\x8e\x13\xc9`)\x93\tG\xa3\xb1\xb8\xcf\x7fs\xac\x8fb\xd9A\xf06j&lt;\x96\x93\xa4,\xef\'\x10\xc4\xd9"\x97  \xb5\x1a\x1b\xad\x1a\xe8\xb7\xb9_\x16\n@\x97\xa2\x18\x08\x13\x04\x91\x8b&lt;.\x952\x16;\xf1\x05\xb0\xf2\n58=\xb8\xe0\xeb\x8d\xe7\x00\x96$\x06X\x8cD\xb8%X\x04\x8e\xe3r\xadU\x17\x8c\xd8\xdc\xcb/\x1b\xb2\x86#\\\x01\x0e\xca{e\x8e\xcf\x94J\xf9L8_Q\x03`\xff\x14|\xfa\xdc\xd8B&lt;\x0e\xa0\x12\x12/\x12,\x05[\x10\x14\x05a\x8aR\x90\x8b\xfb-\xba.\xc3}\xe9Q1Mx5\\\x91qL\xa8\xd7M\x13Z\x8ed&gt;\x98\t\xa6\xc8\xc0\xf4\xb9iE;7&gt;\xe6\xcb%\xb2|N\xe2\xd3e\x13\xa3d\x02r\x8a2\x00\x96L2;\x1b-\x99\xd3\xb5\x1d\x9bj\x8ce%\xdd\xab\xc0\xc2\xcc\xb2\xc9\x19\x86\x90\xcd$\x82\xc9\xa0D\x12\xd0%*\xde\xc1\xc1\x80\x9a\x8a$\xf8\\NL\xd7\xf7\x90\xa2\xcb8\x05lAfQ\t_qj\xa9\x15\nq\xfc\xd2mmXj\xe7\xbd\xfdp2\xcc0\x8a\x80\xcc\x10sQ)S\x89\x89\x02\xcd\xb0\x14F\xd2*-\xa6r*/\xa22\xb0Y,\xca\xba\x0c\x8a\x82i\x944\x17Pn/\xb7\xe0\xfa\xad\xcec\x1f\xfcS\x1b\xe6\xdbCh\xda\x8b\xfb\xc1&gt;a\xa6\x89\xe3\x88&amp;E\xbe\xc2\xf3\x90\xe24\xc9Aw\x03\x9d\x84J\x93\x0ca\xd4\xcb\xa6i\xc1Rp\\\xf3\xd2C\x937\xa7\xb7\xae\x1e\xebl~\xbe\xb7\x1d\xfe^\x19\xa7?k\x0f2\xfd\n\xf8:\xbch\xa2"\xf8\t\x12\xa99\x90\xd5`6\x1b\xa9f\xadN\x82`H\x11\x14\xd7(\x1b\x18\xa2,\\\x8a\x97\x9d\x9c_\xe9\x1b\xdfY\xbd\xd4t\xe9\xea\xbc\xe6t=l\x8c\xd3\xdd\xdd\x8fS\xb2\x860\x8a*\n\x06\xc0B\x04C\xf3P\x91\x83\xa1j\x15\xbc\x15\xb2\x1ck\xb6,`\x82a\x809\xa3X]\xd3\xbc\xfe\xd8\xdc\xe8\xca\xcd\xd3;\xab\x1f\x1ckv\x14\xdd\x87\\\xae\x87\xb5q_wwO\x04\xd3\nV*\x83\xde\x9b\xd0;\xb0\x0c\x99\x8ddC\xa1\xeal(\xc2\x914\xc3\x88\xd5\xb2\x81\x04\xb3\x88\xc9\x14A)\xde~\x9d^\x99\x9b\x1f\x1d\xb6`5\x9d\xae[N\xd7\xe1\xef\xd6\xc6}33=\xe14\x05*\x01:i\xd6M\x03\x93uB\xccf\xab\xd5H:\x1dI\xa7\x04\x92!\xc9r\x953\x8b \xa1\xb03pL\xf62\xb9\xd1\xa1\xf9\x95\xe1\xf1\xb7\xab\x87]\x1f57\xbb:\x8f\x1c\x06X{\xe7\x16\xba\xba;&lt;\x11A\xd64Y\xc6\xcd\xbdz\x11Wt\xbf*\xf2\xd9\xb4h\x18\x1cxC0\xf8F\xbaZ\xc6\x00\x96\xa2\x80\x9e\xe2:KJ#\x8b\xf3\x17.Z\xb0\x06\xdei\xaav\xd9\x8e\xdb\x07\x0e`\x05\x86f\xba\xbb\xc2)L\xd1\xbc\xfdZ\r\xf6Z\x03\xd7\x03&gt;\xf0\xa1\x02\xa2\x08\x9a\xa7\x19\x90\x03\xb3^\xad\x03U\xa0\xec\x04\x12\xb1\x80\xca\xcf\x8d\x0c\xcd\x7f\xf3\xe5\xb9-\x80\xe5\xba\xd6\xd9Tup9\x9d\xae\xd5\xbd\xf1\x9b\xf3\x8b\xdd\xdda^ \t\xd9\xeb-4\x1a\xc5\x06\xec3\x061\x0c\xbc\xa1\xfbR)?\xc5\xca\xc5\xfaN\xbd\x06\xaa\xe0\xf5RH\xf43\xfcy@5z\x7f\x02\x04b\xc0\xe5z\xeen&amp;YmN\xa7c\xe0\xea\xce\xf8\xd8\xfc\xcc\xf6\x8c\'\x11\x06\xdfBQZ\xa1\xf6\xba\x86\xeb84[\xac\xac{\x07YQ\x80\xaa\x8c\x99{;k5@\xd5\xef%H\x9f\x8fN\xccy\x16\x87Vv\'\x06-XN\xe7\xb5\xe6\x92\xe5p\x0e\\};\xfe`t{\x1b\x92&gt;\x18\xe1\t?%\x17j\xb04\x05W\xc0\xd2X\x83\x96P\x99\x15\xacf\xee\xad\x01\x87\x96\xc0\xab"\x9d\xe3%\x88\xe1\xd0+\x80\xb5\xf9G\x97\xcb\xe9z\xb7yQt\xb79\x1d\x0e\xa7\x13`}yaf\xfbL\xd7H\x97Gb\x18BV\n\x85\x82\xd6\x7f\xafQ\xf0\xea\xd3\xfd^\xcd\xdbP\x14\xbcV[\xdb\xabi\x9a\xceR\xa0\xab4\x9f\x98\x9b\x1b\x1d\x1a\x1a=\xfb`B\xdew\r\x0c8\x9dm\xc7\x9b(\xa5v\x0b\xd6\xc6\xdb\xd3\x13\xdf,now[#\x88\x89\x9c\xeag\x95\x82\xe2\xd5\xeei\x9a\xa2\xf5k\x85{Z\xa1Q[\xb3V\r,\x03KXB\x9b\x08\x8f\xcc\x01[\x17\x9e\\\x9c\xa8=t\x00[\x8eKM\xfbo\xdf\xfd\x0b\xbb\xdd\xee\xf8\xab\xe3\xf0\xe6\xe9_\x9d\x9d\xdf\x9e\xf9\xac\xa7+\xd8\x13\x0c\xa7HF\x97\xe5\x03\xca\n\x9aW+h\x85B\xe3\xf5Z\xcd\xac\x818P:\xebW\xa1R\x86GF&lt;#\xf3\xf3\xafv/N\xec]m\xb3`\xd9\x7f\xdb\xac(\xde\xb2[\xb0 \xbb\xa6\xee\xfd\xe9\xc9\xca\xf6\x993\x8b]]\x1eO0\xc1C\x01du\n\xb7\x9c\x0e\x94&gt;\\)Z\x92\x01\xc6\x0fJ\xa1\xee\xa7\xf9pb\xce:pd~\xe5\xec\xee\xc5\x8b\x8f\\\xefA\xc6;\xecG\x9a\xe4R;?:@\xe5r\\Z}=\xb1\xfbj\xf1\xcc)\xa8@\x1eO8\x9c\x10\xc1\xce\xf4\xb1\x00\x83\xc20!\r\x1d\xad\x00n\x1a,}\x80\xf5\xd3\x89H"\x1c\xf6\xf4\xf4t\x8d\x0c\x8d\xbe\xba\xbf\xfb@\x9fz\xe7\x10\xa0r\xd8\x0f\x1do\xc6-\x10l6\xf7/\x7f&amp;\xcb\xfe\xde\xf2\xa3\x07\xbb\x10\xc5_\xff\xa5\xfb`\xc2\xd52|*\x13\xe8ce\xd6O\x90V\xef\x08]\x0e\x05\xb0\x08\x95L\x01nOO{OG\xd7P\xd7\xca?\xee?yP\xdbx\xf7}@\xe5\xb0;\x0eY\xb7@\xf8?\x81u\xdeZz\xeeh\x03X\xf0\x81\xef\xff{J\xdf\xbd\x7fa\xe6\xd4\xa9\xf6\xf6\xdft\x80z\xc1\x02\x9f\xe5\x0b\x04\x06u\xbd\x8f%\xa0\xe1&amp;\xa8\x00\xc3\xd04\xc9\'&lt;\x9e\x9e\x8e\x83G\xd7\xc8\x9f\xcf\xde\x7f\xb2\xbb\xb5|\xe4\x90E\x96\xfd\xf7\xff#\xe5\xfcB\xdbF\xec8\x9eJ\xb2dK\xc2\x15\x1a\x92\x82\xf1B\x1cL\x98k\xc7/\xc6M8\x1f\x18\xe2\xe2\xb9\x83\xad\xedr\xce\x1c#\xbaKb\x0cU\x1ab\xd8\x91\x07\x9b\xc3\xf7p\x90\r\x8f\x95\x10\xc2b\x93\x0bN\xdc\x18\x12\xfc0\x16\xe8C\xda\x04\xd6\x91\xacKh\xc2\x85\xf5io\xa9\xd7\x91\x95\x96\xd1][\xc8\xbd\xec\xfb\x93{\xe3\xc6\xc6\xfe\xfel\x87D\x8e\xa5\x8f\xbe\xdf\xef\xef\'9\xb1]-\xa4\x98\xcd\xff\xc7\xc9\x0b\x03C\xcb\x8dr9\x98\x14y\xac\x8fg]\x8d_\x7fq\x18\xdd\xca\'\x12\xbd\xbe\xde[S\xb7\x006\x85\\_\xba\xf8\xad+\x97\x7f\xfc\xd9\xe5\xcb\xd7\xaf\xdc\xbcr\xf3\xbb\x97&gt;\x9e\x9d\x9d\xbd\x15\x89\x8dA\xabH(\x14\xc8-\x01\xeb\xf2[\xb9\x9b%*\xb9P\xb6\xaaU\xcbx\xbaI\x1f\x1bq\xe1\x7fR\x8a\rZ\xcdv\xbb\x90\x94y\x85\x97y\xd1\xb5\xf7\xe5\x17\x87\xa5\x85\xd5D&gt;\xef\xf3E\xc6\xa7fc\xe3\xe3\xb3\xb7\xc6\x7f\x8a\x13\x87\xf7.\xbe\x7f\xf3\xe6\x8dK?\x7f\xef;\x1f_\xc3\xa2\x18t\xf2\xf9z\x08k\xa2xpP:\xbc\xb8\xc3\n\xf6\xbe\xf1\xd5r\xa1PE5\x0ch\xf6\xdf?w\x84T\xeez=X\xd8i[\xbc\x88\xd5\x89\xbc\xe8\x94\xb7\x0f\x0fK\x07\xb9\xd5\xd0U\x08F\xc3+66:9:9&gt;5&gt;5\xf5\xf9\xa7\xb3\xd7f?\xc5e|}=\xd2;\xd83\x16\x89\xf4\x86B\x89\xd5\xdc\x0b\xc2z\xe9qv\xdbXn\xa8\x1f\xb4,\x8b\xc8,\x1d\x9a\r\xf4\xd1\xc7\x80\xfcgx\x17\xfaF\xfc|\xbd\xbe\xb6V\xaf[\xed2\xadNdyQ\x90j\xd3\xa5\xd2Aq\xebA"_\x19\x8c\xc46\xaem\xf8\xe8\xbf\x1ac\xa3\xa3\x93\x9fO\xae\x8f\x8f\xaf\xd3e}&lt;B\xaf\xc8\x8eL\xc4|\x89J"\xbb\xb0\x14=(\xfdb{\x99\x13d\xf2P!\xac\x82eu\xc8\x1a\x05\xc3p3\xfep8\xbc\xf9\xef?\n\xa4o\xe0\x9e\x94\n\x06A\x85\xaa\x97\xdb\x057\x9fdY^v2G\xdf.\x81k\x1f6V\xbc=\x90\xeb\xdaDdpee\xb8\xbf\x7ft\xf4\xd5\xab\xfeG\x8fF\'\xd7\'\xd7#\xd0\x89\xdeR\x10\xea1+\xab\xfb/\x08k\xba\xc6v\x0bd\xa1\xac\x97\xab\xa9T\xb0P\xc0\xd5\xc2\xb5Zn\xb7\xab:\xcf\xeb)\xb7\xeb\xde\xbf\xec\x83\xbe\x91Md\xaa\x90\xaa\x13Wrm-\xd8.+\xa2\xca\xc2H\x97t\xfa\x06\x8e\x94^&lt;\xa8\xe4\xf3\xdex\x8foc\x1e\xdb\x1e^y\x04\xb0G\xaf\xceo\xaf\xac\xf4\x8f\x8d\x8d\xf9|\xbd\xbd\xbd\xbe\x80/\xd4;\xf3\t\x89\xb5\x14-\x95\x9e\x1d=u8\x01\xc5\xcbF\xd9J\xe9\xd8\xe7\x0eY\xa1\xdan[nY\xe4\x15,3\x98{}\xfftD\xf5\xf5\r\x8c\x0c1\n=\xa4\x8e\\\xd5\xeb|2\x894\xb4\x83\xac*\x01\x8bq\xee=\x8f\x82\x0brU\xbc\xe9\xb4\xd9;\xb1\x81\xd9\x04\xc3\x86W\xc6\xfa_\x9d\xff\xe0\xfc\xf6\xf0\xd8:\xbd\x90,\x12\n\x04\x90/3\xff g{x\xe3\xec\xd4\xe5w\xf2\xcb\x984\x84UO\x11\x17J\xab"\xb9\x18\x88\xb2\x8cC\xae[7\x0c\xe6\x1f\xac\xbc00ro\xd3\xc1\x82)H\xfe%)W\x84\xb5\xb6\xe6i{T\x95ay^r\xb0\xc7\xd3%\x92\x0b35\x1d\xf7~\x10\x8a\xd1\x9b\x111\xc5z\xc6\xfa\x87o\x9f\x9f\x9f\xf7`\x88\x82(\x16\xcb\x86\xf2\x153\x9f\xc8\xee\x12V\xeb75\xad;\xect\xf3\x84\xd5\xc4\xde\xdaX\xb0\xd2\xda!\x07E\x14\xe65/\xbbS\x9a\x1e\xfe\xfbWI\x0c\xdc\xeb\xc6\xbd,K\x1cT&lt;O\xdf\x00+)+;U\x89QY\xde\xad:\x04\x84\xeb\xa0U*-&lt;0\xbdq\xaf\x99\x0f\x05 \x18F&amp;\xc5ixx\xa5\xdfGP\x91@,\x10\xfad\xa6\x92O&lt;\xd8/\x16\x97\xa2\xad\x1bgG{\xfe0\xb2%\xcb\xa2n\xa5\xb0\xbf\x1d,\xab\xbc\xd3,(\xcb\xb2(\x8b\xa2\x8c\x89\r\xb0\xa0!~m\xd4\xf6\x8d\x08\xcb8\xbc\xf0\xac\x9aA\x01(i\x17\x9f$\x17\xf9\xea\x0e/eT\x91g\xbb9\xe3K@-\x96\xa2\xb9\x84w.\xee\xad$\xe8M&lt;8\xfd\x9a\x80H\xf4\x02\xe1@\xec\xd6D,\x12\x08\x84&gt;\xf0\x9a\xc8\xfb\xd6.Q-&gt;;i\xbc\x0e\x13\x16\xb6\xaf\x14\xd0\xe0\x90\x0bUh\xeeT\x0b\x06\xb1B\x0fp\xd9\xe5\xae+\x88\xd8\x85\x8e\x7f\x9b2\x9ds\xe0q\xaa\x94\x118!\xa3&amp;\xbfV\xe8\x1e\xcdEXb\xb7\x9fy\xfb&gt;\xb0\x16K\xc5\xacwn.\x1d\xafT\xcc\x0fzB\x91\xc0\xc6\xfc|\x0eBe\xb3\x1b\xa0\x02\x1fu\xaa\xd7\\\xcd-\x14\xa3\xd1\xe8\xfd\xb3FC\n\x87\xbbE\xc2r\xa7h\xee\xe8dc\xa3\\\xd5\x82:4\xb2m\x12;Ed\xbcc\xa4#\x15\xce\xd0\xec\xbbY\x89\x81Z\x1c\x97I&amp;E"\xb2\xf1T\xb7U\x963*&lt;p\xc2\xc5g\xad\xd6"\xb8\x16V\xd3s\xe9\xf4\xdd\xbbf\xc5\xac\x0cB\xb4\x89\xdc\xd6\xd6\xc4V6\xd03\x08\xf3\xf2\xf9\xbc\xe9\xf5\xe6\xb3\xfbD\xd5\xfaF\xedT\x136\x91[l\x01\t\xe5\x15;\xb6\x10\xabY0l,YfUUe\t\x8d\xa5Re\x11R\x85\xdd:\x1d\x89i\x99*\xb9\xc8E\x0er\xf1\xfc;,&amp;\xa3*U\x83Q\xa9\x15\xfd\xdc\xdes`\x1d..\x1e\xec\' \x96\xb7R\xc9\x9b\xe9x|ff0\x1f\n\xc7\x17m\xc8\x00\x00\x08\xe3IDATe\x03\xa1|\x1c\x91\xab\xe4\xef\xde\xf5\xc6\xcd\xd5}X\x08\x13\x9f\x1di\n\xf7\xf4\xa9\xa0\xf2\xd8&lt;/K\xe2\xda\x9a\x82&gt;\xaf\xc2A\xcd\xd0\xedF\x14\tK\x95TUb\\.\t\xfd\xd5\xb5)\xa7t\xde\xf6O\x95P\x8c+#\x10\x99\xba\x86nT\xd5\x8c\xaa\n\x82\xe4\xb6\x9a\xa2\n\xf7a\xc5\xd3\xb7\xd3\xa4\xd6\xe2!\xb8L\xef\\\xda[\x81\x9b@\x99\xf1V\xae&amp;\xae&amp;\xe0\x1d\xc00=\xd2\xf1|vwi\xa9\xb8\xd4Z|\xdeP\x96\x9b\xb5\x9a\x07SKUq\xc2%\x89\x18\x07\xa9B\xd5\xd24\x83\xb0HD\xf0\x00\x88nN\xc1\xc90R\x17t\xec\xb8KX\x0c\xca\x85\xe5*\x83\xdc\xa7\x14\xbb\x03\xb8\x8c\xc8k;\x1e\x15\xbeK\x8e\xb0\xa3\xf9\xe6\xfe\xa2\xcd\x15\x9d_\xc5\xe6\xe3\x15\x13nz\xe1Y%\xd4\xf1\x0e`\xa0\x9a\x8b\x87rE\xf4\xe1R\xeb\xc3mC\xd9;\xaa\x9d4\x14\xc2R\x14p\xf1\xba\x8e\xe3b\xf0\x1d\x96\xcc\xb26\x94 \x00\n\xe5r\xba\x98.\x1b\x97\x0c\xb5\xb5"d\xa7\xe0\x92\xf0\xb3\xea\x0e\xd6e\tA\x93DVn\x94)\x93\xc0\n\xb3o\xa7K\x87\x87\x8b\xadVi)\x17\x824\xa6\x17Xq\xa2A\xef\x99\x1d\xa1\x006g\x06\xe6\x17\xc0\xf5Q\xf4\xca\xb1.+\xb5\xed\x93fJf%\x15B\x89*\x86\xba\x164\x82A\xc3\xc6B\x9f\x81\x04T\x02A\xe1+~\xea\xeaD\x1d\xc0\x19\x92\x8a\xc9 \xf3\xb8CR\xe5$\xcb\x07uY\xf0s*\x94\\\xf6\xb8\x91H\x89\x1b\x1a\xf2\x9f\xbe!\x17[\xd1V\xab\x98[\xcdW*\x95\xf8\xdc\x1cu\xa5\xd7f#\xaex\x1c\x8b\xbc\x81\x8d\xdd\xdd\xddb1\xfa\xab\xda2\xa3\xfd\xe9\xc9I\xcd#\xdaX8\xff\xa6\x1b\x9e\xf9\xa7\xbe\xa2"\x87\x9c\x98\x00\x1c\x88l8W\x17\xf2F\xd2\x10\x16\x05\x8b\xc8 \x17C\x11w\xebA\x9d\xe5\x04\xa8\xa5\x8a\xcb&lt;\xb0T\xae\xfb\xf5\x9e\xfcv\xfa\x80\xb8Z\xad\xa5\xdd,5\x1dH:\\\x9d\\\xc5\x89\xea1a\xcd\x83k\xf7\xc3\xbf\x94y\xa7\xb2}|\xfc\xe4\x14\xfb\xce\xa2\xe7\x8d\x02\xcc3R8\xdah\x9a"\x8b\x92\xcb\x0e\x94 p\x1cg\xeb\x85\xcd\xbb\xba$\x10Ih\x02\x0crX\x88\xb4A.\xa7\xd3\xe1pfXz\x9c\xa6\x88\x92\xc4\xda\xcd\x8b_|}\xb4s\xd2&lt;}\xf9\x11\xda\x1e\x15-n\xf4\xcc\xcc`\x1e\x98$X\xda\xa62)]s\x8f\x1f\xa7M`\xed\xcf\xcf\xef\xdey\xe8I\xc9L\xed\xc9\xf6q\x03Y\x11!\x93V\xf0X\x1eO\x90\xfe\xac\xe1\xc6\x1e#O.(\xd5)\'}\xe1\x9cB\x17)\x03\x16\xa2\x01\xb6\x8b\xc1&lt;\x158\x7f\xd8\xc1\xe0TF14\x8f\xc7@[\xdb\x13Ee\xe5\x93\xda\xceN\x93?yy\xe3~\x8b|\\\x9a\xef\x8d\xe3\xf8&lt;\xdc3H\xf9\x8a\x9b\x94.\xe4+\xfe\xf8&lt;\x8e\xa9\x95\xdb\xcfML\xdc\xfcm\xcd\xa3\xb3\xcc1\\\xb4t\x84T\xa7Uz\xacF\xc3c\xe8\n\xcf`[\x0e\x07\xd7\x11\xeaoX\x80\xec\xea\xe8\x86\xc8\xd9W\\8\x87?\xec\xe7$\x16S\x8e\xa7}\xf3\x18\xe8H\x15Z\xb1\x92vvv\xbc\x83\x9d&gt;y\xf8\xc7\xef\xdd\xb9s}\xb1\xb5\x1b\xeb\xa1#\xf4\xed\xe1\x19\xefL&lt;m\xe61\xdcM\xdbB3\x1f\xd8\xcaa\xc2\xce~\xf6P\xd1d\xce\r\xb1\x9a\x9a\xe1fe\xa2\xb2@\x05,C\x97\x19\xce\xef\xc7I\xa0\xdf\xe1p|E\xc4q\x14\xfb.b\xeb\\\xc9b\x07z-\x1cv8\x19V\xa6V\xa0\xe7\x87\x9aG[f%\x92\x8b9:{\xfe\xbbcMa2Z{\xfb\xcf\x7f\xf8\xd17\x7f\xf8\x93\xeb\xdf\xff\xe5\xcb\xa9\xb1^*\x12\nl\xc8\xd9\xe3\xb9x~5\xbb\x9f\xdb\x9a\x18\xfd\xfd\xcf\x8e\x15]\xe2\x9aO\x8eO\x1aF*EkC5\x1a\x96E\x93Tfa\x1f\xf7n\x9b\x1c\x19\xc99:\x92uA\xc1n{\x89\x00\x9d\xc2CC\xb8\xdf\x85\x8cI,\x1d\xf0\xe9\x89\x18\x04\xfbk\xd3e\x10\xdaH\x1d\x85\xf10\x9d\xc9\xcc$m\x89\xc14\xb3\x19\xd7\xdd\xc3\\J\xa17k\xa0`\x03\xf5\x10z\xaa`eY\x8a+\x85\xec\xa1\xba\x18\xacs\xe9e\xbc\xa9,Tz3a&lt;,\x81\x81\x8d\x87=x\x0bM\x0f\x81\x16\xf6b\xa04\x87 \xe4`\x1b\xa4\xadP!\x88\x07/~\xdf\xfb\xff\xb3\xf6O\x1a\x1a\x92\x90\xdf|\xef\xbd\xef{S\xcc\xc9\xac\xe6\xcf:W77\xfd\xdf\xe3\x19\xdbI\xef6{\xa3\xf10&lt;\x98L\x9e\xac\xb0\x89^b\x95\xf9\x12X\x1c\xcb\xb5\xe7/\x8e~9=\xdd\xb9\xf9g4\xba&lt;\x89\x9d\xf8\xb2y\x96@\x9eb\xf1\x0eU\x11\xed&gt;\x93\xa5S\xb9\xfc\xdd24#\x16\xebi\x9a)\xd2\xb2\xbc\x10*\xc0\x9b\x81mH\x02\x18yF\xba\xdco\xe2\x12\xc1\x85\x96\xcft\x07\x9d\xce\xf9\xbf\xe7\xcd_O.&lt;w\xbe\xd4\x1d\x9c_\x0f~\x0b+\xb5\x0f\xf7\x7f\xdc?^|\xf7\x9b\xb5\xb5-\xb4\xfd\xd6\xda\xf6\xfa\x11:k\xe7\xea\xacW\xbb\x8drn\xa6\x15%\xe4\xe0\x04i\xac:&amp;1f\x04\x0bVV\x83Yl4k\x8a\xc5\xd2\xa2\xa1(\x15\x9c\x03X2\x05y\x95\xe6\xe9\xf9\x18\x1dV&lt;\x89\xd1]\xd5\xcb&gt;\xc0\xae\xcf;\xcd\xa4\x18\xcf\xce/t\x07\xbd\x91\xff\xa0\xe2\xef\xad f\x0e\x17\xb1Ho\xd1%\xdey\xfe\xe7\xd1\xe3\xa3O\xaez\xb7\xc3\xb0\x97\x9b\x99)%-l\xc8\xe0\x12\xaa\x16\xfe\x84\n\xee\xca!\x03\x16~\xce1\x97\xcb\xedrp\x07\xcb$\x96\xd0z\x1ej\xc9\x12\xcaLb\xfefg\xe38\x1d\xc7q\x8e\x16\x98\x99\x99/D\xcd\xc1\xa0\xdf\xef\x9f%\x85j\xb5?y=\xf4\x1f\xbcU\xc1\xb9\xbf\xf2\xf5\xfe\xfe\xf1\xce\xfa\xf6\x17\xe2\xa9O_\x1c=\xde\xf8c\\{{nxmeJ\rp\xd4\xebZ*9E@\x81j\x8a\xc5g\xd7\x0eT%MV\x92Xl\xb9v{\x19\xa5\xf5p\x18\x95\x80\xc75\xc0\xcc\x00\xf67\xd8\xf0\xc4D\xc5R\xd2\xea\x9eE\xa5FRD\xdf5&amp;~ez\xeeo\n\xd7\xc7\xb0\xf8o\xd70\x86\xcf~\xda\xf3+\xfe\\8\xec@+dr\xa1p\x07\x0b\xdd\xcex\x96\xa8S\xe3\xef\xd2\xe4\x1d\xab&lt;\xad\xa4\x95\x02\x9aE\xfd0~\x8e\xedY\xe4r\x89\xc5\x10`-ai\xdc+\x10\xdf8\x04\xab\xa6\xf3\x99j\xbd\n\xc7n\xbe\xf6}!\x83b\xf76\xbf:&gt;&gt;\\\xa4sm?\xdc\xd8\xac\xe1\r\xbc\x19N\x12j\xc5\xfa\x954VA\x96\x19\xb8\xa0@M]\x89\x03g\xabB\x8a]\xa4,x\'_p\x18)\x96\x07\x07!\x97\xbc`\x9c3\r\xac \x80\x9d\xc0s\xf34\x8a\xacc\xe4JK\x99l\xfa|\xa8\xb1\xc0\x15\xae\x1c\x9f\xfe|\xb8\xfa\xf0\xe9\xfa\xea\xa7{\x00\n!\xd5h\xd4,\x92\x04\xf788E\xd9\x18\x16\xa4\xa9\x18tB\xa4\xb2Y9)\x14c!\xcb\x81i\xa5\x02vUY\xa6\xd1\xf4\x84\x85\xd6f\x18\xd3\x8a\xe2\xd3\xf4\xbc@h\xd1\x0cy\xc9\x0b#]\xaf\xa7\x8d\xdd[b)\xb4J\xed#l\xee\xfb\xab\xef\x7f\xfeAH\xaa0\xf4\xc7\x83f\xab\xf5?\x16\xa1r\x02\xa5\xcb\xe7:oV\x06\xb1N\x07\xde`A"\x08\x96"U\xa0\xa8h\xf8\xa8\xa3\x85J:\xac#A\x1dG\xfe\x85Z\xfc\x1e\x9b4\xcbm\xc3uq\x8b[Mw \x97:\xe0z\x82Dz\xef\xe5\xc6+E5\x1c\x8f\xae\x93$a\xd5\xa4z\xd4)7]\xaed\x81\xd2X\x0e/\x9d\xeb\x03\x1f\xd2Q\xe0J\xb5I\xa5\xb8\x08\x0e\x8d\xa0\x8c\xe5\xe1Zl\x01\xf4l\x08\xee\x88\x19\xe3\x8b\xe23\x06\xb7C;[m-5n\xfd\xd0\x7fC\xf6\x03\xd6\x8a\x95!u\x02\xd5\xa8\xd7\x8f\xa2\xa4\xa5\xa9\n\'\x9c=6@6\xab\x94\x12\xb1t&gt;\xeb8\xe4\xf4\x99\xaa\x90\xa96[\x8c$\xd4\xc6c\x19\xf9\xca\xb3%\x1dy&lt;W\xed\xac\x96\x8a\x07Q\xfc\xd1#\xc3\xb5\x9c\\c\xf7\xfa\x8d\\\xc0\xba\xf7\xddg\xdf\xd7\x04\xea\xe0\xb6\xd7\x8c4\x15\xcd}!\'\xfd4-\x9e\xa6\xd2!\xe8I\x05m&amp;\x9f\xfa\r\</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xc0\xdas\x8cPA\x1dEz\xdc\xda\x99\x87j\x00\'\xa5;\x80\x10GZ)\x80\x8b\xbb\xf8\xaa\xb5\xcb$m\x92qJ[\x01\x19tE\xc9\xefQ\xa3D&amp;B[\x1d\xea,\xc9\xe6/Jc\x93\xe4~\x83\xad*"\xc56\xd5\x1f\xf2\xc7#\xf3\xaaoB\x86\xa6\xe6\xfb\xddsS\x00\xdd@\xa2,\x07D\x015!\x07vi0\x16\x82p2i\x00)\xdc\xbb\x80\xef\x8a(\x02?|PFGJ\x9b{\xd7\x01\xbb\x0e1B\xa9\x07&amp;\xa8\x01\xfa\xd4S\xee1\xedSU\x10(\xea\xda\xfe\x93\xe1\xbd\x1am_]\xd5!\xb5\xb5\xb7\x8d\x9ek\x9b\x99\x02*(\xeaI&gt;\xd5\xf2\xb7\xc6/\xf8*\x9f\xc2O\x05\xf8\x92o\x0c\xf8\x1fFmq\xad\xd4\x995+\x8b\xc5\xb6\xb5_\x97 \x82Ag\xfaq\x9fZ\xa5\xbe\xa5F.G\xcb&gt;/\xff\x00\x82\xc1\xfcw\xf16\xb3&amp;\x9b\xe1\x9dcM\x8e\xd9\x98,\x91\xe8\xf6;&lt;\x95\'\x9f\xdeHY\xb2\x06=Fj;O\xf8)\x17\xc6-I#\xb0\xd7\x97\xedV\xd6\x8aVI"\xbee\x96G\xc9(\xed\x81\xf9\x80pq\xda\xb3s\x8a:#\x87v&gt;\x8d\xf8M\xff\x00\x055\xb7\xb9\xf0C_x\xda[y\xaf\x95\x90Co\x1c\xab\x19\x95\x88\xe5\x18\x9e\x83w\x7fC]\xa7\xc2\xaf\xf8)\x87\x83|e\xadMk\xe3\xaf\x06\xdci6\xaa6\xc3\xac[\xdc,\xd6\xef\xcfu\x1f2\xfdy\xfa\n\xad%\xaa1\x959FV&gt;\x93\xf0\xff\x00\x88\xf4O\x13\xe96\xba\xff\x00\x87u8ol\xaf#\xf3-\xae\xad\xe4\x0e\x92/\xa8"\xb4\xa2px\xa8Fj\xfdE\x00\x86\xcdKL\x02\x8e\xbdE\x00*!c\xb5~\xb4R\xe6\x024\xfb\xd4\xae1\xd2\x98\r\xa2\x80\n\xafyumco%\xe5\xe4\xeb\x1c1\xae\xe9$v\xc0QU\x10&gt;\x05\xff\x00\x82\x88~\xd2\x9f\xf0\x93h7~\x16\xb8\xd6#_\x0e\xcd\xf2\xd9\xcdcp\xac\xderw\x91z\x859\xfars\x8e+\xf3\xafT\xd2&lt;a\xe3?\x11\xdd\xab\xeb\x8d\x1c\x8bpDqH\xc7\xca\x7fN\xbd3\xd9\xb3Y\xd6\xa8\xa1L\xf4\xb0\xf4\\\xadc~\x7f\x86w\x96\xfa|r\xc1\xa3\xc7\x1e\xa8\xb8\x0e\x92\x86\xdc\xcc;\x0epr:\x1e\x86\xb4t\x8f\tY_9\xd6\x11\xe6\x8e6\x8b\x0f\x0cnCn^\xa8\xc7\xae\x01\x04\xfb\x86\xaf\x1db\x94\xa5\xa9\xebG\x0c\xe3\x0b\xd8\xe4|S\x1e\xa3\xb29\xed\xae\xa4\xb1\xb7\xb7&gt;n#\xfb\xcc3\x85\xed\xc9=y\xe8\x05;\xc1\xff\x00\x11\xbcs\xa3k\xa3G\x8a\xf6V\xd3\xd5\xb7|\xdf\xc2\xb9\xf5\xcfOa\x8a\xee\xa1\x88\x89\xc7R\x87[\x1fn\xfe\xc5\x7f\xb5\xc6\xad\xf0\xa3P\xb5\xd3d\xd6|\xcf\rMp\xa7V\xd3\xe5V\xdbm\xb8\xf3&lt;c\x90\xa4u u\xe4\xf5\xaf\xd2\xbd\x0fT\xd2\xf5\xfd6-cE\xbd\x8e\xe2\xdae\xdd\x1c\xb1\xb0*\xc3\xeb]\xb7\xe6W&lt;z\xf1\xe5\x9d\x8b@\x13\xc6*JFaN\xf2\xa4\xfe\xed\x00I\x0c@rz\xe2\x8a\x9d\xc0\x84(\x1c\x81A\x19\xaa\x01\xbb\r\x1b\r\x006\xbc\xb7\xf6\xae\xf1u\xde\x83\xf0\xe6m+O7QMx\xc1V\xe2\xdd\xc2\xaa\x81\xc9\x04\xfb\xe3\xb54TU\xe6\x91\xf9[\xfbH\xdaj\xfe7\xf1LZL.\x9cH\xc5\xddX\xee|\xf64x{\xe1\xb6\x8d\xe1\xcbE\x82\xcc-\xc3I\x18.\xb2\xf2\xca\xdd\xf1\xed\x9a\xf9\x8c\xd7\x1d\xc9&gt;T\xcf\xba\xc9\xb2\xfez|\xce$\xda\xe6\x9e\xd2i?\xd8\xd7P\xb2\xaco\xba\x19\x17\xef\xc7\xf4&gt;\x80\x8a\xc5\xb2\xb4)v\xd3\xdb.\xdf9O\x99\xb9q\x96\xc6\x0b~5\xe0\xfdy\xf4g\xd2\x7ff\xc7\x97c\x1bY\xf0\x8cZ\xbcB1\x032\xac\x9b\xe5\xda\xbf0\x0b\xf7P{\x0e\xf5\x89\xe2\xbf\x87\xf6\xb3@\x92\xdb\xc4\xb9\x8d@XcS\x8c\x03\x92\t\xfa\xfeu\xeba\xf1O\x95jy5\xf2\xf8\xab\xe8u\x7f\x06\xb5\x9f\xec\xeb\xfbx\xd1YcYT\xc9\x88U\xa3\x00\x1e\xf9\xed\xf8\x1c\xd7\xeaW\xec\r\xf1\n\xc7\xc6_\x0e\xaf\xb4\xbb\t~[\x1b\xad\xe5W;\x13\x7f8Q\xfc#\x8e\x9d\xab\xea0\xb5UL9\xf1\x19\x9d\x1fgSc\xdd\xe2|\xb6\x05L#,3\xb8V\xbc\xc9\x1e`yx\xeaE;\'\xd6\xb2\x93\xf7\x80td\x83\xc5\x14D\x08h\xad\x80(\xa0\x04*\x0f&amp;\xbeb\xff\x00\x82\x80x\xa2\xf7N\xd4\xb4=\x0e\xd5\xa6\xf2\xda\xd2ye\x1b\x80\x8cv\x07\xd7=\xa9Kg\xe8\xcd\xb0\xea\xf5\x91\xf0\x0f\x88\xef\xe4\x93\xc4\xd7\x17L\x15\xe4\xf30\xac\xbd\x85O\xa4_Osy\xe6\xc9.\xdd\xad\x86\xf6\xaf\xcd\xb3\x1a\xd2\x96"G\xecYU\x1eL&lt;}\r\x1djh\xa6\x97u\xb5\xae~_\xbd\\\xcc\xbad\xd2\x16b6\x88\xdb\x8f\xf0\xaf:3=N[ne\xf8\x82g\x86eE\x9c\x8d\xdc2\xaa\x8e\x7f\x1a\xc2\x8a\xf9]\xbc\xbf7\xee\xb7\xce\t\xafW\x07R\xea\xcc\xf3\xb1T\xfa\x96\xfc\x1b\xaa&gt;\x8b\xe3U\x8e\xd1"\x929\xa4\x1f\xb9\x91\x01C\xf5\x06\xbfF?\xe0\x9aZ\xf4q\\\xeb:,\xb6\xb6\xb0I}n\x93\x18\xec\xd4\x85R\x84\x80\x08$\xf6?\xa5}\x8eW&gt;j2G\xe7\\AO\x97S\xebH\xc0\xdf\x91S\xa7\xdd\xafB]\x0f\x99\x16\x9c\xa8X\x12\x05@\x02}\xea*\xa2\x044V\xc0\x14P\x01_%\xff\x00\xc1J\'\x96\t\xb4\xd6K}\xdbt\xf9\x1br\xb0\xc9%\x80\xe9SS\xf8o\xd1\x9d\x18O\xf7\x98\xaf3\xe0\x17\x9e[\xb9\xe4\xba\xda\x15\xa4\x99\x84\x8b\xddNx\xae\x9b\xc1\x96\x1aY\x90.\xa1.\xe5n~Q\xd4\xfaW\xe58\x899b%s\xf6l-\xe1\x85^H\xe8\xef4\xfd\x06\xc8\xee6\x97\r\x1ep\xae\x8c\x0f\xe9\\\xf6\xabk\xa7\xca\x99\xb3\x92G\r\xcb|\xb85\x86\xc7e9T\x92\xb9\xccx\x9e\xd7K\x07\x00\xb6\xf5\\\xa9\xdb\\&amp;\xa8\xb1\xc7w\xb6\xd1\xcb)\xfc3]xyJ:\x98\xe2z\x1b^\x00\xd1/\xf5\x0f\x11Ey=\x8b4q\xc8\x1c\xee^\xaa=+\xef_\xd8\x10\xd9\xd8|^\xb5kY\x7fw=\x9b,ynX2g\x1c\x1eG\xa7\xd3\x15\xf6\xd9,\xa4\xe9\xca\xe7\xe7|E\x1ft\xfbybPs\x8a\x9b\xc8\x7fQ^\xc7\xc4|x\x8e\x85:\xd4\x88\xa1G\x02\x85\xb8\x11\x1c\xee\xe2\x8a\x9d@\x8a\x9e!\xca\xee\xdd]\x0c\x06Q@\x08\xc7\x03&lt;{\x93_\r~\xdb_\x19|\x0b\xf1/\xc6\xd1\xdbxKT[\xb8t\xff\x00\xf4;\x8b\x88\xdb\x8f3w \x0f\xcf\x9e\x95\xcfZ^\xeb^L\xec\xc0S\x94\xf1Q\x92\xd9=O\x96\xbcM\xa7\xe9\xd6\x9a\x91"\x14V,\xc2B\xbcgi$\x13\xf8\x11S\xf8Jo\x0e^:\xc7.\xa9n\x01\x18\xff\x00\\\x17\x1e\xf9&gt;\xf5\xf9}jU%Y\xd9n~\xb7G\x15N\x9e\x1d93B\xf7D\x8c?\xdbt\x8dnV\xc3m*\xb3\xef_L\xf5\xe9M\xd3t\x0b\xcb\x96\x9d.\xa5Q\xe51\xe7\x8f\xc4\xd6S\x8c\xa2\xec\xce\xfau\xa0\xe9\xb9D\xe3\xbcSw\xe1m:\xe6kMKX\x85YW;\xa4\x99W\x03\xdf\x9a\xf3\xfdKP\xf0\xbc\xba\x8a\xc7\xa4\xeb\x90\xcd\xb9r\xbbe\r\x9a\xed\xc3\xd0\xa9\xc9v\x8e,F2\x9f?-\xcfg\xf8\x03k\x1d\x9e\xba\x1a\xea\x1f\x96K\\\xabI\x82\x02\xe3\xa0\xfa\x9a\xf5\x7f\xd8\xe7\xe2g\x87&gt;\x1bx\xbcx\xd7\xc5^&amp;\xb6\xd2\xec\xf4i71\xba\x93y!\x8b\r\x8a\xa3\x05\xb8\xdc\x07\xa6k\xec2\x8f\xdd\xc5\xa7\xd8\xf8\xbc\xe62\xad\x16\xa3\xb9\xfa\x11\xf0\xa3\xe2\xef\xc3\xff\x00\x8d~\x14O\x1a|9\xd7\x96\xfbOy\x1a?1T\x86W^\xaaA\xe8Eu\xa0\x822+\xd8\xa7%(\xa6\x8f\x8e\xa9F\xa5\x19rOt\x07\xa7Jj\x17?ykC1\x11A=(\xa0\x08&lt;\xb6\xf5\xa5V$m\x06\xa7\x99\x80\x8c\x85FM6\xb5\xe6@Gv\x82[Y#\xc1;\xa3n\x07~+\xf2&gt;\x1b-CY\xf1U\xe6\x9c\x15\xa3\xba\xb3\xd6\xa6\x17Q\x11\xcf\x96%l7\xa9\xc6+\xca\xcc*\xfb:\xf4\xd2\xfbW_\x86\x87\xd2d4cS\x0fZ]W+\xfc\xcf1\xfd\xa2\xbcq\xa8G\x04\x96\x1a5\xbe\xe9\x16F\xf3\x0f\xb7e\xaf\x96\xfcu\xaf\xf8\xd6\xdb\xc3\xf7&gt;5\xd4t\xd9\xd7M\xd3f0\xdc\x0b{\x9d\xb8n\xb8\xc1&lt;\x9czW\x81\x87\x8d:\xd2\xd9_\xcc\xf7\xb1\x94\xe7\x18\xea\x9b\x8aK\xf4=7\xf6u\xf8\x8f\r\x8d\xfe\x9f\xa2\xcbu\xa8[\xc9|\xca\n\xddHYq\xc3\x02\x0eq\x8a\xfa/\xe2\xe7\x88\xff\x00\xe1\x10\xd0\xdfUK\xe2\xabqg\xb9\x82\xb7\xdd$W\x87\x8a\x85\xb1\\\xac\xf7\xf0\x16xm\x0f\x8b\xbe+\x1b\x7f\x15\xe9\x1a\x87\x8atsus\r\x8d\xb3\xcf\xa8\\\x89&gt;T\x00\x13\x8eN2q\x81\xeax\xef\\\xa7\x83\xef|Y\xe1[\x8b]B\xc4\xc9o\xf6\xabu\x928\xe4`\xcaclc\x9e@&lt;\xe7\x1cW\xd1\xd1\x8f\xb3\xc2&amp;\xcf\x9c\x94\xb9\xf1mG\xa6\xa7\xd8\x9f\xb3\xbf\xc5}kU\x93K\xd1\xefq\xba\xdd\x14\x1b\x88\xdb!\xd7?\xd2\xbdS\xe3\xaf\x85\xb4\x0f\x83z\x8d\x86\x82\xfa\xacw\x1a\xa6\xa4\xb2\xc9gn\xc7\x95Fm\xc0\xed\xf6^0{\x9a\xda\x8d_\xdc\xceK\xa6\x87Di7^\x11}O\xaa\x7f\xe0\x89\xfaw\x8b \xf8\x03\xe2K\xff\x00\x10\xc12\xdb\xdd\xf8\xb2g\xd3|\xc58(\x14\x06\xc7\xb6k\xedU\x1bF\x05{X?\xf7x\xfa\x1f\x1f\x9e8\xbc\xda\xb7.\xd7\xfd\x10\x00O\x02\x9c\x10\xe7\x9a\xea&lt;\x91\xa1@\xe8(\xa0\n\xec7\x0cSBc\xbdf\x01\xb3\x8cf\x9aT\xfaS\x8e\xe0*\xaeO\xcc\x0f\xad~v~\xd1?\x0bu/\x04\xfe\xdfWW\xd6\xb6\xcb\x0e\x9d\xa9X\xb5\xc5\xbcJ0$yP\x86\xfc\x8eMy\xd9\x9a\xe6\x8c$\xbaI\x1fC\xc3u=\x9e"\xac?\x9a\x0f\xf0\xb3&gt;r\xf8\xb3\xe1].}r\xf7H\x9e\xd6@\xf1\xc8\xce\xc1\x14\xe4\r\xdd\xeb\xc7\xbe"|\x1f\xfe\xd0\xd1\xe6\xb6\xd3`\xf3\xa1\x99\x86\xebv\xc7-\xeas\xfdk\xe4aZT*I&gt;\xe7\xdf\xc7\x0e\xabQW\xecg\xfc:\xf8\x15\xe2/\x0e\xeaq\xea\x97\xb6\xd0\xa0ic*\xab6N\xd0A\xfc?\n\xee&gt;8\xdaj\xb7\xfe\x17\x8e\xcd\'fX\xe1\n\xec\xd9\xc9\xeb\xfd+\x9e\xb5Oo\x8a\xba=\x0c&gt;\x19\xe1\xf0\xce/\xa9\xe0V\x1e\x0b\xd5b\xb4\x9a\xcb\xec2\x08fR\x92\xfe\xe4|\xe9\xe8@&lt;\xd7o\xa2|\x13\xd3g\xd2\xe1\x8e;\xa6\x95U~X\xde\x1c(8\xfa\xd7\xa1S\x17(\xc5$y1\xc1\xf3]\xd8\xf7?\xd9+\xe1\xf3\xea\x1f\x134_\r\xe9\xe7\xe4\x8e\xe1Vd\xf2\xfa\x0c\xd7c\xfbt\xfc3\xd6&gt;#~\xdc\xfe\x15\xf0\xdf\x85%\x91\xae-\xa6\x82\xd2\xe3\xcbl\x81\x0e\xd5\xf9\xce:\r\xc4\x8f|\xfbW~\x1dK\xeazu\x91\xcbR\xb7\xb0\xcc\x12\xed\x16~\xad|\x16\xf8c\xa1\xfc\x1c\xf8k\xa4\xfc;\xf0\xed\xb0\x8e\r&gt;\xd4+q\xcb\xc8yf&gt;\xe4\x93]`\x198\xaf\xa5\xa3\x1eX\xd8\xfc\xd7\x11Y\xe21\x13\xa8\xf7m\xbf\xbc\x90\x0c\n+c\x12 \xa79\x14P\x04\n\x0b\x1c\ns#\'Z\xcc\x06\xd1@\x05|\xb7\xff\x00\x05\x15\xf0\x94\xda]\xdf\x85~0i\x903Mc\xa8\xad\xa5\xd3\x0f\xba\xb11\xea\x7fZ\xe4\xc7\x7f\xbb\xb7\xda\xcf\xf1=,\xa6N8\xf8\xf9\xdd}\xe8\xf9k\xe3G\x87mt\xff\x00\x1f\xcd\xaf\x88#{mF\x14u*\xbc\x03\xdcW\x9cx\xef\xc2\x9a\x1f\x87m[\xc4\xf7\xd7Q\xc3n\xb0\x97\x91w`\x01\xfe5\xf18\xc5|\\\xd7\x99\xfa\xc6W9K\x07\x07\xd7o\xb8\xc5\xf8}\xadx{\xc5\xba\x1ajzf\x96\xc26\x93\xf7sI\xff\x00-\x13&lt;0\xfa\xd4\x9f\x16,-\x05\x84/5\xb9\t \xdaO\xa8\xf5\x15\x95*|\xb5\x11\xeb_\x9a\'\x8e\xfd\xbfD\xb0\xf14:F\xaa\x92C\r\xc4\x9b!\x95\x9b\x8d\xd9\xe3?Z\xf5\r\x17C\x83E\xdb#F\xad\x06\xd2c\x90\xb6q[V\xd2I\x9cq\xe5P\xba=\xb7\xf6$\xd2\xad\xe6\xf8\x99q\xae\xe22\xb6p&lt;\xbb\x94u8\xc2\x7f3\xf9W\xa6\xfe\xc6\xbf\n\xf5\x0f\x8b\xdf\xb6\xef\x8a\xbe*k\xbaYm?G\xbeo\xf4\xa6B3$$,Q{\x8d\xc0\xbf\xbe+\xe90\xb4\xdf\xd5\xa9\xdb\xab&gt;\'2\xad\x18T\xaf6\xf6\x8d\x97\xab?AS\xa6jP;\xd7\xb9\x08\xb5\xb9\xf0+`\xa78\x0b\xd0V\x80F\x80c4P\x041!\xce\xfc\xd3\xa5B\xfd\x0fJ\x9bh\x04%XrV\x8a\x90\x0eO\x00T:\xdf\x864\x0f\x15\xe9\x12\xe8~%\xd1\xed\xefmf\\Kou\x10uo\xc0\xd4\xca\x1c\xf1\xb1Q\x94\xa3$\xd1\xf9\xb9\xfbh\xe9\xb2\xf8K\xc6\x9f\xd8VP\xe2;i\xa6U\x8dT\x80\x17w\xcb\xf9\n\xf9\xd3\xe2f\x9fw\xe3\xe5\xb0\xf0\x1b]\xb2\xc1r\xc5\xaf\x19\xbbB95\xf0y\x96\x99\x9bK\xb9\xfa\xe6G)\x7fg\xc2F\x95\xdc\x0b\xe1\xab\x08-\xbc4\xb1\xc3\x05\xbc+\x0ci\x1a\x0ca{V?\xc4\x8f\x8bw\xba\xcd\xb2\xe9\x89a\x0c\xb7V\xd0\x88\xe1]\x89\xb4~\xb5K\x0e\xe7f\x99\xe8\xca\xb3\x8e\x87\x99^i\xb7\xde&amp;\xdc\xbe1\xb6\x89\x9b\xa4On\xb8\xdb\x93\x90F;\x83^\x93\xe1[\xd9\x07\x86\xff\x00\xb1u\x06\xfd\xf4`\r\xd8\xfb\xca?\x88\x1f\xca\xa7\x17\xee\xb4:r\xbd6\x99\xee\xdf\xb0\xdd\xac\xf3\xeaz\x95\x85\xba1y\xa3U]\xb9\xe4\x93\x80+\xf5\x1bC\xf0\xf6\x99\xe1\xdd6;=2\xc2\x18\xbfv\xab#E\x08S!\x03\x1b\x8e:\x9e+\xeb2\xbf{\x0b\x1b\xf9\x9f\x98\xf1\x1b\x97\xd7,ZU`\xb8"\xa4\xc1\x1dEz\xc7\xce\x85:NW\xf1\xa9\x93\xb2\x01\xb8\xc0\xc0\xa2\xa9l\x04j\xa1F\x05\x14\x00\xd9\xbe\xe55"F\\\x9a\x9e\xa08D\x8ar(r\xe0eE&gt;\x80|7\xff\x00\x05#\xf0\x86\x95k\xe3\xd8\xf5\xbb\x19\xa1\x96G\x89^\xea\x14o\x997\x0cs\xe9\x92\x0f\xe7_\x18\xfcH\xd3\xe6}\x19o4\xeb\x96\x86\xf2R\xd0G"\xff\x00\x06q\xcd|\x1eu\x0fg\x99_\xbd\x99\xfa\xa7\x0fVu2\xa8\xb3\xcb\xf5\xf3\xf1\xe3\xc1\xb7\x8bgi\x7fo\xaaX\xc8\x01\x8d\xbe\xcc\x16E~8c\xc8\xc7^p;V~\xa3\xe2\xdf\x11\xd8\x93t\xfa\x06\xa1\xf6\xe9\xa3\xcb+$[wt\xc7\r\xd3\xf0\xae\xbc?\xb1\xadN\xf7\xb1\xeaJ\x8e2\xd7\x8aO\xd5\xd8\xe5\xf4M_\xe3W\x8a\xb5\x85\x8bX\xd3t\xfb\x0bT\x97&amp;E\xde\xce\xd8\xed\xd4W\xbeZ\xe8\xf1M\xe0+mKz\x9b\xc8\xefAm\xab\x8c)\\\x11\\8\xe9S\x8c\xac\x14}\xa7+\xe7V=\x9b\xe1o\x8d\xae~\x03\xfc\x05\xf1\x7f\xc6\x9d\x18F\xda\xa6\x8f\xa6\xc9q\xa6\xac\x8b\xb8&lt;\x91\x80\xc3#\xb8\x06\xbe\xe2\xff\x00\x82{\xfe\xd9\x03\xf6\xc6\xf8\x11c\xe3\x8db\xca\x0b-m`\x8c\xea6\xd07\xcar\xa0\xefQ\xd8\x1c\xf4\xed_U\x94\xe9\x83\x81\xf9\xcf\x11FO\x15)&gt;\x8c\xf7\x8brI;\xc5L\xfd+\xd6&gt;t\x8c\xb7\xcd\x81R\xaf+\xcdEO\x84\x08\xa4\x90y\x9eZ\xf6\xa2\x9c~\x10\x1bEP\x11\xb73\x00jN\x9c\x01H\x07&amp;;\x8a\xe6\xbe*\xfcE\xd2~\x1axN\xe3\xc4\x17\xe5ZUR-a\xfe\xfb\xff\x00\x850\xdc\xfc\x9c\xf8\xe7\xfbE\xeb\x17\xdf\xb6l~\x1b\xf1\x0e\xa9\xe6\xa7\x8a\xb4\x1b\xb4xf\xe9\xe6\xc4VD\xc7\xa1\x0b\xbc\x0fc\\\xed\xcd\xb4\x9a\x96\xa1\xf67\x9flq\xcb\x94V\\\xfc\xde\x95\xf0\xfcE\x1f\xf6\xa8K\xc8\xfd;\x85el+\x8f\xa1\xa9\xfd\x8c\x8bo \x9dSv\xd1\xb8\x91\x9c\x9f\xa5r\x1e!\xd0L\x9b\xee\xb6*\xaa\xfd\xd3\xf6q\x8f\xady\xf8z\x92\x8c,}T\xbb#\x11\xb4\xc8\xd0\xab\x83\xb9\x99~V\xc7CV?\xb5`\xd2\xb4\xa6\xd1\x12A\x1c\xd36\xe6\xdc\xc7\x9es\x9a\x9a\xde\xfd\xaes\xd6\xf7\x11{\xe3\xef\xc4\xfb\x9f\x0f\xfe\xc8\x9e.\xb2\xb3\xb9\xfd\xf1\xd0^\x18\xc6?\x89\xddw\x13\xf8\x7f*\xf5o\xf8!\x8f\xc5{\xdf\x0c\xa7\x87\xed\xf5\x9b\xb6\xb7\xb3\xd4\xac\x04w\x1b\xbe\xee\n\xe4W\xd8d\xd2o\r\xa9\xf9\xf7\x10C\xf7\x8f\xd0\xfdt\xb3\x92\xda\xf6\xd9o,&amp;Yau\xdc\x92F\xd9\x04z\xe6\xa4?:\xfc\xa6\xbd\x88\xca\xe7\xc7\\\x8d\x86\xd6\xebRo\x019\xaa(\xaa\xa0\xc8K\xd1B\x02T\xfb\xd4\xb2\x1crh\x02?1z\x9a\x1ah\xa3R\xf2\xc8\xa8\xab\xf7\x99\x98\x0cR\xb8\x1c\x1f\xc4\x0f\xda{\xe0\xf7\xc3\x83\xf6}K\xc4kuw\xff\x00&gt;\xb68\x91\x87\xb1#\x81\xf8\xd7\xcc\x7f\x18\xbe0k\xdf\x16&lt;Eq\x7fq1[$\xc8\xb7\xb6\xdd\xc2\'o\xc6\x935\xa7\x16~r\xff\x00\xc1Ag\xbc\xf8s\xfb@|9\xf8\xa3\x1c-\xe4\xdbx\x85`\xb8u\xeac\x91v\x11\xfa\xd7s\xacj-$\x8b\xa8G;$\x83\x0c\xa7w\xe2\r|g\x10\x7f\xbcA\x9f\xa2p\xdc\xedA\xfa\xff\x00_\x91f\xe7\xe2\x94v\xd6\x9en\xa9\x02\xcc\xd8\xc7\x98\x8d\xf2\xb0\xfe\x95\x83\xae|^\xba\xd6\'Im\xf4\x89\x1a5Ll\x8e\x13\xc0\x15\xe7\xd1\xe5Q\xd4\xfa\x95Z1\xdc\xe5f\xf8\x92\xcd\xa9ypB\xb6\xea\x0f\xcd\x1b\x0ej\xac:\xea\xdf\xebM\xa8\xb4\x9et\x9b\xb0\xbf\xdd_zU9e+\x1c\xf5g\xcfvq\xbf\xb5\xdf\xc4\xa3\xa2|#\xb8\xf0\xf5\xa4\xcc\xd7:\xc4\xd1[,q\xfd\xe6\xdc\xe3 {\x9a\xfak\xf6=\xf0\xb6\xa5\xf0\x9b\xc0\xba\n\xc5\x11[\x8d6\xca#\xd7\x82B\x8e+\xea\xf2X\xcb\xea\xe7\xc5\xf1\x07\xfb\xc2^G\xd6\xde\x00\xfd\xb0\xbci\xe0\xdb\x11\x07\x87\xa4X\xa3\xf3&lt;\xd9,\xee\x17|dw\x03\xfb\xbc\xfaW\xae\xfc6\xff\x00\x82\x88x?\xc4\r\x1d\x8f\x8e\xfc;q\xa6\xcc\xcd\xb4\xdc[fT&lt;\xe3$u_\xd6\xbd\xae[l|\x8c\xe8\xdbc\xd3\xd3\xf6\x98\xf8\x04\xcf\x14s\xfc[\xd0\xe1\x92a\x98\xe3\xb9\xd4\x127\xfamb\x08\xae\xd3L\xd64\xcd~\xc2=CE\xbf\x86\xea\xdaa\x98\xe6\xb7\x90:\xb7\xe2)\xf2\xc8\xe7&amp;A\xe5|\xb4R[\x01\x00\x95\x9b\xe7\x075\xc6\xfca\xfd\xa1\xbe\x0f\xfc\x0e\xd1\x9bZ\xf8\xa3\xe3\xab\x1d-\x15IX%\x98\x19\xa4\xff\x00v1\xf3\x1f\xca\x85\x19KD\x07\xe7\x7f\xed\x87\xff\x00\x05\xcd\xd7.\x05\xc7\x84\xbff}#\xfb:\x15fS\xe2\x0b\xe0\x1ag\xed\x94N\x88&gt;\xb9?J\xf9\xa3\xc0\x9f\xf0X/\x8f\xf6\xda\xd2\xe8\x7f\x1a|Oy\xae\xe8w\x0f\xb6i\x96C\x1c\xf0\x0c\xfd\xe1\xb7\x01\xc0\xf4"\xba\xde\x161\x83or\xa3\xbd\xcf\xa6\xb4\x1f\x17x_\xe2\x1f\x87!\xf1\x97\x82u\xb8\xf5\x1d&gt;\xf1wGq\x04\x81\xb9=\x8f\xa3\x03\xd4\x1eEw\x1a|\x11=\x82\xc9\x13\x1c\xe3k\xee\xf5\x1d\x7fZ\xe3\x91\xd4\x8f\x9f?o\xcf\x82\xf7_\x13\xfe\x15\xcc\xda4\n\xda\x8e\x97"^\xe9\xe5\xbf\xe7\xacl\x1c\x0f\xc4\x80+\xc8\xbe\x12\xf8\xee\xd3\xe2\xdf\x80b\xd5\xa5\x87\xcb\xb8Ba\xbc\xb7?~\xdeu\xe1\xd0\x8e\xd85\xf2|EM\xda3\xec}\xa7\x0c\xd4\x8f,\xa0\xf7\xdc\xa7\xe2\xdf\x06\xc1w4zu\xf6\xa7q\xf6q&amp;\xe6\x8e9\xb6\xff\x00\xf5\xeb\xd0\xbc7\xe1\x0f\x85p\xf8Y`\xcc\x92L\xab\xce\xeb\x83\xc6{{\xd7\xcb\xces\xe5V&gt;\xb1S\xe7\x91\xe5\xbe6\xf0\xef\x87t{\xab\x8dGG\xb7\x1f\x7fk+6\xe1\xf5\xaa\xfad6\xda\x7f\x87\x1b\\\xd4\xa6\xf2b\xdb\xbb\xcc\x1d\x14z\x9a\xda\x87&lt;\xda]\xc9\x92QL\xe4~\x0e|1\xd4\xff\x00k\x1f\x8f\xb6\xbe3\xbc\xb6x\xbc\x1f\xe1[\x8504\x8b\xf2\xdd\xdc/\xd7\xb0=k\xee\x1d\x1c\xdbi\xf6\xbe@\\/\xdd^+\xf4,\x05?cB(\xfc\xef0\xad*\xd8\xa963_\xf1\x16\x9f\xe1m"\xe7\xc4:\xc5\xf46\x96v\xf6\xacf\x92i\x02\xa2\x8c\xf5\xc9\xaf\x93\xfe;\xff\x00\xc1K\xc4fO\t|\t\x8dc\xeb\x14\xba\xf4\xcb\xf3\x11\xd0\xf9J\x7f\xf4#\xf8W\xadN7\x92&lt;yH\xf0\xfd\x1f\xe2\x1f\x8au\xedFMk\\\xd6\xee/.&amp;\x93s\xcdq1f\'\xeak\xe9\x1f\xd9\x9b\xfe\n\'\xfbB\xfe\xceW\x11\x7f\xc2\x1d\xe3\xa9\xfe\xc2\xad\x96\xd3o[\xce\xb7a\xe9\xb5\xba~\x15\xdd\xcb\x19S\xe5h\xe3\xb5\xcf\xd0/\x80\xff\x00\xf0\\O\x84~-\xd0\xfc\xbf\x8c\xbe\x19\xb8\xd1u(\xe3\x05\xae4\xf5\xf3`\x9c\xf4\xe0\x1f\x99O~\xe2\x8a\xe1\x96\x16\xa4ed\x1c\xac\xf1/\xda\xfb\xfe\x0by\xe3]^k\xcf\n~\xce\x90\x7fa\xe9\xcc\xcd\x1a\xebS\xa0k\xb9W\xd5A\xc8\x8b\xeb\xd7\xdcW\xe7\xe7\xc4\xaf\x8e\xfe8\xf8\x87\xacM\xae\xf8\xbf\xc6:\x86\xa5y3n\x9a\xea\xfa\xf1\xe5f&gt;\xe5\x89\xae\x8aT\xfd\x92\x0eS\xcf5\xbdp\xddn\x94\xea%X\xafv\xe0\xd6\\~\x1f\xf8\x81\xab\xc0f\xd2|+\xaa^B\xb9&gt;u\xa5\x9b\xc8\xa3\xf1\x00\xd5T\x92\xd9\x95\x18\xf4&gt;\xa2\xff\x00\x82v\xfc\x17\xfd\xab\xfc+\xe2\xcbo\x1aI\xa8I\xa1\xf8GP\x90\x0b\xbd\'R\xdcZ\xf0t\x0c\xb0\x9eP\xfa9\xc7\x1e\xa2\xbfB\xb4\x18\xb7\xe9\xfb6\xed\xdcI\xc7\xa6My\xb5\x1co\xee\x9b\xa5c\x91\xf8\xc1\xe2\xaf\x00x\x17\xc3\xf3_\xf8\xff\x00\xc5z~\x93g\xb4\x86\x9a\xfe\xe1c\x18\xc7\xfbG\x93_\t\xf8\xcbQ\xb2\xf0\x06\xb9q\xfbA\xfe\xce\xfa\x84&gt;%\xf0\xbd\xe5\xf3G\xe2k]\x19\xbc\xd1\x13\xa9\xc0\x9f\xcb\x1c\x86\xc0\xc1\xe3\x91\xcdy9\x96\x17\xebT\x1cO_)\xc6}W\x10\xa4w\x1aO\xc7\xef\x84\x7f\x17\xb4\x88u+YbY\x98\x01"\xc6\xc1Y\x08\xf5\x1f\xfdj\xb1u\xa6\xf8[X\x83\xcf\xd3\xbc]\xfb\xa5e\xdf\x12L\xa3\xbfC\xef_\x08\xe8\xce\x9c\xb9Y\xfa4e\x1a\x94\xd4\xe0\xce?Q\xd1\xf4\xbdk\xc5\xb0\xf8oO\xd4Y\xed\xd5L\x97I\x0c\x87,\x07PNq\xfe5K\xe2w\xc3\x8dk\xc7\xf6K\x0f\x88\xfcO\x0f\x84&lt;\x1bdquu#my\xe3\x18\xe5G\xe9\xb8\xf1^\xae[\x86\xfa\xc6"7\xd9\x1ene\x8c\x8e\x17\n\xdb\xdd\xe8v\xff\x00\xb2\xbf\xedW\xf0\x13P\xf1\x07\xfc(\x8f\x85\x9ae\xcd\xbe\x9bcg\xb3L\xd6&amp;\x87\xcb\x8bP\x90\x13\xb8)8\xdc\xd9\xe7?\xc5\xda\xbe\x8c\xd3\xa0{\x85\xf3\x1e\x1f\xc0W\xdc\xc2*6G\xe7\xf2\x93\x95\xd9O\xe2\xbf\x80|=\xe3\x9f\x85\xba\x9f\x86|_b\xb7:}\xe4k\x14\xf17\x1cn\xceA\xecE|\x0f\xe2_\xf8\'W\xc5A\xe2k\xe7\xf8Q5\xae\xa9\xa4\xc5!k\x18\xe5\x98G&gt;\xdf\xee\x10p\t\x1e\xb9\xe6\xbbiJ1\xdc\xe7\x9cd\xcf3\xd7,\xfcK\xf0\xdbZ\x9b\xc2\xbe)\xd2f\xb1\xd4-\xdfl\xf6\xd7\x11\x95e&gt;\xbc\xf5\x1e\xf5sG\xd6\xaf.d\xf3e\x98\xfa\xaa\xe7\x81]\x91\x9729N\xbbM\xd7\xa5\x8e=\x8c\xe1\xbb\xf2\x01\xfetU\xdd\x81\x93\xe2MfK\x9b\x83\xfb\xcc\xfa\xfbW#\xac\xdf\xc8\xd2\xf9A\xbe^\xbfZ\x89\x01\xf4g\xec\x07\xfb\x11j\xdf\x17\xbcAi\xf1S\xe2\x86\x9c\xd6\xfe\x15\xb3"KK[\xb0U\xb57\x07\x8c\x0f\xf9\xe6;\x9e\xfd+\xf4*\xd3\xc3z&amp;\x93e\xfd\x99\xa3\xe9\x16\xd6v\xea\xb8X\xed#\n\x80{\x01^uj\x9c\xd2~F\x94\xfb\x997\x9e\x1c\x9e\xc6\xe1u-&amp;\xed|\xe8\xdbz\xab\x83\xb7#\xa6k\xcd\xbe%|D\xfd\xaa4\xf4\x97N\xf0\xae\x91\xa7\xdb@AU\xbc\xb5\x88\xc9(\x1e\xa0\x1e3\\\xf1\xe5\xeam)]\xe8x\x11\xf8i\xe3)\xbcd\xde3\xf8\x9f}}\xe29\xe4l\xcdo\xad&amp;\xe5Q\xe8\x83\xa2\x8f\xa5w\x16\x7f\x07&lt;\x07\xa8\xd9\xcb}\xf0\x9d\x13\xc3:\xa5\xd1G\xb8\xb71\xff\x00\xa3\xdc\xb2\xf6`=zg\xae\r?t#+jr&gt; \xfd\x99&lt;)\xe2O\x13\xdc$\x9e\x1dO\x0cx\x89\xa2\xf3"\x92\xcd\xb1\x1d\xe1\xee1\xd1\xbdr9\xc7Z\xf0\x8f\x8b\x1e\r\xf8\xaf\xf0\x0b\xc4F\xebS2\\\xe9W2|\xb7p\x93\xb5$&lt;\x1d\xc3\xf8k\xc5\xc6e\xf4\xe5\'Q-\xcf\xa1\xca\xf3iJ&gt;\xc5\x9e\xad\xfb:E\xa4Z\xf8:\xef\xe2\x9f\x8a\xee\xc5\xbe\x99d\xad%\xd5\xd4\xcb\x85\x90\x8e\x88\xa7\xf8\xbd\xea)&lt;3\xad~\xd4\x1a\x97\xf6\xef\x8c!\xb8\xd3|\x17\x1c\xdb\xec\xf4\xa9&gt;Y\xb5"\x0f\xdf\x97\xfb\xa9\xe8\xbe\xfc\xd6\xb9N\x17\xd8\xd3r\x92\xd5\xbf\xc0Y\xd6*8\x8a\xd1\x82\xfb+_Vo\xea\xbf\x034\x9d^k{\x7f\x08\xe8+\xa7\xc3k\x81\x13\xdb.\xc6\\t\xc1\x1d+\xd6\xbc\t}\xf1K\xc3zlv\x1a\x87\x88&gt;\xd0\xb1\xae\x16K\x88\x837\xe2{\x9a\xf5\xe2\x971\xe0\xe8\xa4n\xc8\x9e)\xf1hM6\xff\x00W\x92h\xd8\xe5\x95F\x14{\xe2\xbb\x0f\x08\xf8&gt;\xcf@\x8d|\xb97I\xc6\xe6j\xb7n\x83R\xb9\xe6?\xb5\xef\xecW\xa0\xfe\xd3ZZ\xf8\x87B\xb8\x87N\xf15\x8c{m.\xdd~[\x95\xff\x00\x9erc\xf4n\xd5\xf9\xf7\xe3\x0f\x06x\xc3\xe1W\x8b.|\x13\xe3}\x1ek\x1dB\xd1\xb6I\x0c\x8b\xf7\xbd\x18\x1e\xea{\x1a\xe9\xc3\xd4\xd3\x94\xe6\xa9\x1b1\xfav\xa4\xc2&lt;\xb4\x9f\xad\x15\xd8fW\xd6o\x1f\xcf\xf3?\xbd\xe9^\xc9\xfb\x00\xfe\xcdzO\xed\x1b\xf1~I\xbci`\xf3x\x7fA\x88\\\xdf\xa0\xfb\xb3\xc8O\xee\xe2oc\xc98\xea\x05s\xd5\x97,[\x1a?J\xc7\x87!\xd3,c\xd1\xf4\xbd\xb0\xda\xc1\x1a\xa40D\x81V5\x1c\x00\x00\x1c\x0fj\xa7$Z\xad\x88\xdbi&amp;~\xb5\xe6\xe9\xd0\xeb\xa7f\x8a\x92x\x87P\xb7o/P\xd3\x97o\xf7\x94u\xa7\xa6\xb5\xa7\xcd\xc9\x81\x96\xb2b\x94Tv#\xbd\xb3\xd15\x05\xfd\xf6\x9f\x1b\xee\xea\xcc\x83&amp;\xb1/\xfe\x1c\xf8F\xfc\x97\x8e\xd4\xc3\'Uh\xdb\x1c\xd2\xd4\x93\x9f\xf1o\xc3\xef&gt;\xc8\xd8M\xae\x0b\x88P\xee\x87\xedJ|\xc8\\r\x1a9\x17\xe6B\x0f\xd4\x1fJ\xf3\xff\x00\x88\xda\x07\x86\xfcy\xe1k\xaf\n|W\x87\xfd\x16\xde\x10\xcd\xa9Y\xe05\xca\x02&gt;FR1\xb8\xf4\xc8\xeez\n\xa7\xefDqr\x84\x94\x97C\x92\xf0\x9f\xc2x~2-\xbd\xae\xabh4\xdf\t\xe9\x12\x88\xf4\x9f\x0e\xda\xfc\xb1\x10\x84a\xe4\xee\xecq\x93\x9e\xfe\x95\xec\xdaW\xc3=\x0fO\x84[Z\xdb+"\x0c*\xb7AE\xf9v.S\xe6\x93\x91\xadm\xe1[[X\xb6An\xab\xf4ZC\xe1\xaf6]\xa8\xbe\xe6\xae/\xab\x12\x95\xcb\xfan\x8d\x1d\x84\x7f\xbb\xf9X\xfd\xe6\xc7Z\xd2\xb6,\x00QN2\xd6\xe2\x8fR\xfd\x8c\x85\x0e\xcfZ\xf3\xef\xdac\xf6V\xf0\x1f\xed1\xe1\x1f\xb1\xea\xd1%\x9e\xbdj\x84i:\xc4q\xfc\xf1\xb7\xf7\x1f\xfb\xd1\x9e\xe3\xb7Q\xcf]c&gt;Y\xa6D\xb5?3~ \xf87\xc4\x9f\x0b\xbcc\x7f\xe0/\x15\xd8\xfd\x9fP\xd3n\x0cW\x11\xee\xce}\x08=\xc1\x1c\xe6\x8a\xf5"\xee\xaes\x98\xf7\xf3\xbc\xd6H\xc7\xae\xe2+\xf5#\xfe\t\xf3\xf0\xbbG\xf8W\xfb5h\xf2Z\xc5\x1b\xdd\xeb\xf1\xff\x00h_\xdc \xe5\xd9\xbe\xea\xf3\xfd\xd5\xfe\xb5\xc9\x89\x95\xa3b\xa2{d\x92#.\xd5^\xb5Y\xd1A\xce\xda\xf3\xcd\x88.!\xb7\x90\xedxA\xac\xdb\xcd6\x1e\xc0{{T\xc8\n\xfeN\xd1\xb35\r\xccn\x06#l\x1cR\xb9I\x99\x9a\xd5\xa2[iW\x1a\xa5\xdf\xef\x16(\xcbm\xf5\xc75\xe3\xc2\xc6\xeb\xc6\xb7\xf7V\xb7\xd3*\xd9\xdc}\x9d\x04?\xdd,\xc5\x89\xfc\x80\x14\xe2Rg\xa7h\xde\x06\xd2|+e\r\x9e\x95\x18\x8e4m\xaa\xa3\xe9\xd6\xb6\xadl\xa1\xdb\xbdF\x0fz\t\xb6\x84\xe8\x8a\xa3j\xfd\xe3\xdc\xd6\xbf\x83&lt;%/\x8c\xa6\xba\xb6\xb5\xbbX\xa5\x85U\xbfx\xbf)\x04\x81\xdb\xf0\xaf/&lt;\xcd\xa3\x91\xe55q\xd2\x8bj\x9a\xbbKv\xae\xafcL=9V\xae\xa9\xae\xa2x\x93\xc2W\x9e\x1aO\xf4\xa9\xa1\x93\x9c~\xec\x9f_qY\x91\xc6\x02y\x83\xbds\xf0\xee}G\x88\xb2\xf5\x8b\xa5\x07\x14\xfa;_\xf04\xa9FXy86M\x13,3F\xad\x9c\xbf\xa5k\xc0\x1a\x0eA\xf7\xaf\xa2\x8c\x8ew\xd8\xfc\xf9\xff\x00\x82\xafxf\xc7J\xf8\xdb\xa5\xf8\xae\x18\xd5d\xd54\x90\'\n&gt;\xf3#c\'\xf0\xa2\xbdJN\xf4\xd1\xcf-$\x7f\xff\xd9'</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67211805555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>784663</v>
+        <v>784709</v>
       </c>
       <c r="B7" t="n">
-        <v>5981</v>
+        <v>1963</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tite</t>
+          <t>Abel Ferreira</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xc0\xdas\x8cPA\x1dEz\xdc\xda\x99\x87j\x00\'\xa5;\x80\x10GZ)\x80\x8b\xbb\xf8\xaa\xb5\xcb$m\x92qJ[\x01\x19tE\xc9\xefQ\xa3D&amp;B[\x1d\xea,\xc9\xe6/Jc\x93\xe4~\x83\xad*"\xc56\xd5\x1f\xf2\xc7#\xf3\xaaoB\x86\xa6\xe6\xfb\xddsS\x00\xdd@\xa2,\x07D\x015!\x07vi0\x16\x82p2i\x00)\xdc\xbb\x80\xef\x8a(\x02?|PFGJ\x9b{\xd7\x01\xbb\x0e1B\xa9\x07&amp;\xa8\x01\xfa\xd4S\xee1\xedSU\x10(\xea\xda\xfe\x93\xe1\xbd\x1am_]\xd5!\xb5\xb5\xb7\x8d\x9ek\x9b\x99\x02*(\xeaI&gt;\xd5\xf2\xb7\xc6/\xf8*\x9f\xc2O\x05\xf8\x92o\x0c\xf8\x1fFmq\xad\xd4\x995+\x8b\xc5\xb6\xb5_\x97 \x82Ag\xfaq\x9fZ\xa5\xbe\xa5F.G\xcb&gt;/\xff\x00\x82\xc1\xfcw\xf16\xb3&amp;\x9b\xe1\x9dcM\x8e\xd9\x98,\x91\xe8\xf6;&lt;\x95\'\x9f\xdeHY\xb2\x06=Fj;O\xf8)\x17\xc6-I#\xb0\xd7\x97\xedV\xd6\x8aVI"\xbee\x96G\xc9(\xed\x81\xf9\x80pq\xda\xb3s\x8a:#\x87v&gt;\x8d\xf8M\xff\x00\x055\xb7\xb9\xf0C_x\xda[y\xaf\x95\x90Co\x1c\xab\x19\x95\x88\xe5\x18\x9e\x83w\x7fC]\xa7\xc2\xaf\xf8)\x87\x83|e\xadMk\xe3\xaf\x06\xdci6\xaa6\xc3\xac[\xdc,\xd6\xef\xcfu\x1f2\xfdy\xfa\n\xad%\xaa1\x959FV&gt;\x93\xf0\xff\x00\x88\xf4O\x13\xe96\xba\xff\x00\x87u8ol\xaf#\xf3-\xae\xad\xe4\x0e\x92/\xa8"\xb4\xa2px\xa8Fj\xfdE\x00\x86\xcdKL\x02\x8e\xbdE\x00*!c\xb5~\xb4R\xe6\x024\xfb\xd4\xae1\xd2\x98\r\xa2\x80\n\xafyumco%\xe5\xe4\xeb\x1c1\xae\xe9$v\xc0QU\x10&gt;\x05\xff\x00\x82\x88~\xd2\x9f\xf0\x93h7~\x16\xb8\xd6#_\x0e\xcd\xf2\xd9\xcdcp\xac\xderw\x91z\x859\xfars\x8e+\xf3\xafT\xd2&lt;a\xe3?\x11\xdd\xab\xeb\x8d\x1c\x8bpDqH\xc7\xca\x7fN\xbd3\xd9\xb3Y\xd6\xa8\xa1L\xf4\xb0\xf4\\\xadc~\x7f\x86w\x96\xfa|r\xc1\xa3\xc7\x1e\xa8\xb8\x0e\x92\x86\xdc\xcc;\x0epr:\x1e\x86\xb4t\x8f\tY_9\xd6\x11\xe6\x8e6\x8b\x0f\x0cnCn^\xa8\xc7\xae\x01\x04\xfb\x86\xaf\x1db\x94\xa5\xa9\xebG\x0c\xe3\x0b\xd8\xe4|S\x1e\xa3\xb29\xed\xae\xa4\xb1\xb7\xb7&gt;n#\xfb\xcc3\x85\xed\xc9=y\xe8\x05;\xc1\xff\x00\x11\xbcs\xa3k\xa3G\x8a\xf6V\xd3\xd5\xb7|\xdf\xc2\xb9\xf5\xcfOa\x8a\xee\xa1\x88\x89\xc7R\x87[\x1fn\xfe\xc5\x7f\xb5\xc6\xad\xf0\xa3P\xb5\xd3d\xd6|\xcf\rMp\xa7V\xd3\xe5V\xdbm\xb8\xf3&lt;c\x90\xa4u u\xe4\xf5\xaf\xd2\xbd\x0fT\xd2\xf5\xfd6-cE\xbd\x8e\xe2\xdae\xdd\x1c\xb1\xb0*\xc3\xeb]\xb7\xe6W&lt;z\xf1\xe5\x9d\x8b@\x13\xc6*JFaN\xf2\xa4\xfe\xed\x00I\x0c@rz\xe2\x8a\x9d\xc0\x84(\x1c\x81A\x19\xaa\x01\xbb\r\x1b\r\x006\xbc\xb7\xf6\xae\xf1u\xde\x83\xf0\xe6m+O7QMx\xc1V\xe2\xdd\xc2\xaa\x81\xc9\x04\xfb\xe3\xb54TU\xe6\x91\xf9[\xfbH\xdaj\xfe7\xf1LZL.\x9cH\xc5\xddX\xee|\xf64x{\xe1\xb6\x8d\xe1\xcbE\x82\xcc-\xc3I\x18.\xb2\xf2\xca\xdd\xf1\xed\x9a\xf9\x8c\xd7\x1d\xc9&gt;T\xcf\xba\xc9\xb2\xfez|\xce$\xda\xe6\x9e\xd2i?\xd8\xd7P\xb2\xaco\xba\x19\x17\xef\xc7\xf4&gt;\x80\x8a\xc5\xb2\xb4)v\xd3\xdb.\xdf9O\x99\xb9q\x96\xc6\x0b~5\xe0\xfdy\xf4g\xd2\x7ff\xc7\x97c\x1bY\xf0\x8cZ\xbcB1\x032\xac\x9b\xe5\xda\xbf0\x0b\xf7P{\x0e\xf5\x89\xe2\xbf\x87\xf6\xb3@\x92\xdb\xc4\xb9\x8d@XcS\x8c\x03\x92\t\xfa\xfeu\xeba\xf1O\x95jy5\xf2\xf8\xab\xe8u\x7f\x06\xb5\x9f\xec\xeb\xfbx\xd1YcYT\xc9\x88U\xa3\x00\x1e\xf9\xed\xf8\x1c\xd7\xeaW\xec\r\xf1\n\xc7\xc6_\x0e\xaf\xb4\xbb\t~[\x1b\xad\xe5W;\x13\x7f8Q\xfc#\x8e\x9d\xab\xea0\xb5UL9\xf1\x19\x9d\x1fgSc\xdd\xe2|\xb6\x05L#,3\xb8V\xbc\xc9\x1e`yx\xeaE;\'\xd6\xb2\x93\xf7\x80td\x83\xc5\x14D\x08h\xad\x80(\xa0\x04*\x0f&amp;\xbeb\xff\x00\x82\x80x\xa2\xf7N\xd4\xb4=\x0e\xd5\xa6\xf2\xda\xd2ye\x1b\x80\x8cv\x07\xd7=\xa9Kg\xe8\xcd\xb0\xea\xf5\x91\xf0\x0f\x88\xef\xe4\x93\xc4\xd7\x17L\x15\xe4\xf30\xac\xbd\x85O\xa4_Osy\xe6\xc9.\xdd\xad\x86\xf6\xaf\xcd\xb3\x1a\xd2\x96"G\xecYU\x1eL&lt;}\r\x1djh\xa6\x97u\xb5\xae~_\xbd\\\xcc\xbad\xd2\x16b6\x88\xdb\x8f\xf0\xaf:3=N[ne\xf8\x82g\x86eE\x9c\x8d\xdc2\xaa\x8e\x7f\x1a\xc2\x8a\xf9]\xbc\xbf7\xee\xb7\xce\t\xafW\x07R\xea\xcc\xf3\xb1T\xfa\x96\xfc\x1b\xaa&gt;\x8b\xe3U\x8e\xd1"\x929\xa4\x1f\xb9\x91\x01C\xf5\x06\xbfF?\xe0\x9aZ\xf4q\\\xeb:,\xb6\xb6\xb0I}n\x93\x18\xec\xd4\x85R\x84\x80\x08$\xf6?\xa5}\x8eW&gt;j2G\xe7\\AO\x97S\xebH\xc0\xdf\x91S\xa7\xdd\xafB]\x0f\x99\x16\x9c\xa8X\x12\x05@\x02}\xea*\xa2\x044V\xc0\x14P\x01_%\xff\x00\xc1J\'\x96\t\xb4\xd6K}\xdbt\xf9\x1br\xb0\xc9%\x80\xe9SS\xf8o\xd1\x9d\x18O\xf7\x98\xaf3\xe0\x17\x9e[\xb9\xe4\xba\xda\x15\xa4\x99\x84\x8b\xddNx\xae\x9b\xc1\x96\x1aY\x90.\xa1.\xe5n~Q\xd4\xfaW\xe58\x899b%s\xf6l-\xe1\x85^H\xe8\xef4\xfd\x06\xc8\xee6\x97\r\x1ep\xae\x8c\x0f\xe9\\\xf6\xabk\xa7\xca\x99\xb3\x92G\r\xcb|\xb85\x86\xc7e9T\x92\xb9\xccx\x9e\xd7K\x07\x00\xb6\xf5\\\xa9\xdb\\&amp;\xa8\xb1\xc7w\xb6\xd1\xcb)\xfc3]xyJ:\x98\xe2z\x1b^\x00\xd1/\xf5\x0f\x11Ey=\x8b4q\xc8\x1c\xee^\xaa=+\xef_\xd8\x10\xd9\xd8|^\xb5kY\x7fw=\x9b,ynX2g\x1c\x1eG\xa7\xd3\x15\xf6\xd9,\xa4\xe9\xca\xe7\xe7|E\x1ft\xfbybPs\x8a\x9b\xc8\x7fQ^\xc7\xc4|x\x8e\x85:\xd4\x88\xa1G\x02\x85\xb8\x11\x1c\xee\xe2\x8a\x9d@\x8a\x9e!\xca\xee\xdd]\x0c\x06Q@\x08\xc7\x03&lt;{\x93_\r~\xdb_\x19|\x0b\xf1/\xc6\xd1\xdbxKT[\xb8t\xff\x00\xf4;\x8b\x88\xdb\x8f3w \x0f\xcf\x9e\x95\xcfZ^\xeb^L\xec\xc0S\x94\xf1Q\x92\xd9=O\x96\xbcM\xa7\xe9\xd6\x9a\x91"\x14V,\xc2B\xbcgi$\x13\xf8\x11S\xf8Jo\x0e^:\xc7.\xa9n\x01\x18\xff\x00\\\x17\x1e\xf9&gt;\xf5\xf9}jU%Y\xd9n~\xb7G\x15N\x9e\x1d93B\xf7D\x8c?\xdbt\x8dnV\xc3m*\xb3\xef_L\xf5\xe9M\xd3t\x0b\xcb\x96\x9d.\xa5Q\xe51\xe7\x8f\xc4\xd6S\x8c\xa2\xec\xce\xfau\xa0\xe9\xb9D\xe3\xbcSw\xe1m:\xe6kMKX\x85YW;\xa4\x99W\x03\xdf\x9a\xf3\xfdKP\xf0\xbc\xba\x8a\xc7\xa4\xeb\x90\xcd\xb9r\xbbe\r\x9a\xed\xc3\xd0\xa9\xc9v\x8e,F2\x9f?-\xcfg\xf8\x03k\x1d\x9e\xba\x1a\xea\x1f\x96K\\\xabI\x82\x02\xe3\xa0\xfa\x9a\xf5\x7f\xd8\xe7\xe2g\x87&gt;\x1bx\xbcx\xd7\xc5^&amp;\xb6\xd2\xec\xf4i71\xba\x93y!\x8b\r\x8a\xa3\x05\xb8\xdc\x07\xa6k\xec2\x8f\xdd\xc5\xa7\xd8\xf8\xbc\xe62\xad\x16\xa3\xb9\xfa\x11\xf0\xa3\xe2\xef\xc3\xff\x00\x8d~\x14O\x1a|9\xd7\x96\xfbOy\x1a?1T\x86W^\xaaA\xe8Eu\xa0\x822+\xd8\xa7%(\xa6\x8f\x8e\xa9F\xa5\x19rOt\x07\xa7Jj\x17?ykC1\x11A=(\xa0\x08&lt;\xb6\xf5\xa5V$m\x06\xa7\x99\x80\x8c\x85FM6\xb5\xe6@Gv\x82[Y#\xc1;\xa3n\x07~+\xf2&gt;\x1b-CY\xf1U\xe6\x9c\x15\xa3\xba\xb3\xd6\xa6\x17Q\x11\xcf\x96%l7\xa9\xc6+\xca\xcc*\xfb:\xf4\xd2\xfbW_\x86\x87\xd2d4cS\x0fZ]W+\xfc\xcf1\xfd\xa2\xbcq\xa8G\x04\x96\x1a5\xbe\xe9\x16F\xf3\x0f\xb7e\xaf\x96\xfcu\xaf\xf8\xd6\xdb\xc3\xf7&gt;5\xd4t\xd9\xd7M\xd3f0\xdc\x0b{\x9d\xb8n\xb8\xc1&lt;\x9czW\x81\x87\x8d:\xd2\xd9_\xcc\xf7\xb1\x94\xe7\x18\xea\x9b\x8aK\xf4=7\xf6u\xf8\x8f\r\x8d\xfe\x9f\xa2\xcbu\xa8[\xc9|\xca\n\xddHYq\xc3\x02\x0eq\x8a\xfa/\xe2\xe7\x88\xff\x00\xe1\x10\xd0\xdfUK\xe2\xabqg\xb9\x82\xb7\xdd$W\x87\x8a\x85\xb1\\\xac\xf7\xf0\x16xm\x0f\x8b\xbe+\x1b\x7f\x15\xe9\x1a\x87\x8atsus\r\x8d\xb3\xcf\xa8\\\x89&gt;T\x00\x13\x8eN2q\x81\xeax\xef\\\xa7\x83\xef|Y\xe1[\x8b]B\xc4\xc9o\xf6\xabu\x928\xe4`\xcaclc\x9e@&lt;\xe7\x1cW\xd1\xd1\x8f\xb3\xc2&amp;\xcf\x9c\x94\xb9\xf1mG\xa6\xa7\xd8\x9f\xb3\xbf\xc5}kU\x93K\xd1\xefq\xba\xdd\x14\x1b\x88\xdb!\xd7?\xd2\xbdS\xe3\xaf\x85\xb4\x0f\x83z\x8d\x86\x82\xfa\xacw\x1a\xa6\xa4\xb2\xc9gn\xc7\x95Fm\xc0\xed\xf6^0{\x9a\xda\x8d_\xdc\xceK\xa6\x87Di7^\x11}O\xaa\x7f\xe0\x89\xfaw\x8b \xf8\x03\xe2K\xff\x00\x10\xc12\xdb\xdd\xf8\xb2g\xd3|\xc58(\x14\x06\xc7\xb6k\xedU\x1bF\x05{X?\xf7x\xfa\x1f\x1f\x9e8\xbc\xda\xb7.\xd7\xfd\x10\x00O\x02\x9c\x10\xe7\x9a\xea&lt;\x91\xa1@\xe8(\xa0\n\xec7\x0cSBc\xbdf\x01\xb3\x8cf\x9aT\xfaS\x8e\xe0*\xaeO\xcc\x0f\xad~v~\xd1?\x0bu/\x04\xfe\xdfWW\xd6\xb6\xcb\x0e\x9d\xa9X\xb5\xc5\xbcJ0$yP\x86\xfc\x8eMy\xd9\x9a\xe6\x8c$\xbaI\x1fC\xc3u=\x9e"\xac?\x9a\x0f\xf0\xb3&gt;r\xf8\xb3\xe1].}r\xf7H\x9e\xd6@\xf1\xc8\xce\xc1\x14\xe4\r\xdd\xeb\xc7\xbe"|\x1f\xfe\xd0\xd1\xe6\xb6\xd3`\xf3\xa1\x99\x86\xebv\xc7-\xeas\xfdk\xe4aZT*I&gt;\xe7\xdf\xc7\x0e\xabQW\xecg\xfc:\xf8\x15\xe2/\x0e\xeaq\xea\x97\xb6\xd0\xa0ic*\xab6N\xd0A\xfc?\n\xee&gt;8\xdaj\xb7\xfe\x17\x8e\xcd\'fX\xe1\n\xec\xd9\xc9\xeb\xfd+\x9e\xb5Oo\x8a\xba=\x0c&gt;\x19\xe1\xf0\xce/\xa9\xe0V\x1e\x0b\xd5b\xb4\x9a\xcb\xec2\x08fR\x92\xfe\xe4|\xe9\xe8@&lt;\xd7o\xa2|\x13\xd3g\xd2\xe1\x8e;\xa6\x95U~X\xde\x1c(8\xfa\xd7\xa1S\x17(\xc5$y1\xc1\xf3]\xd8\xf7?\xd9+\xe1\xf3\xea\x1f\x134_\r\xe9\xe7\xe4\x8e\xe1Vd\xf2\xfa\x0c\xd7c\xfbt\xfc3\xd6&gt;#~\xdc\xfe\x15\xf0\xdf\x85%\x91\xae-\xa6\x82\xd2\xe3\xcbl\x81\x0e\xd5\xf9\xce:\r\xc4\x8f|\xfbW~\x1dK\xeazu\x91\xcbR\xb7\xb0\xcc\x12\xed\x16~\xad|\x16\xf8c\xa1\xfc\x1c\xf8k\xa4\xfc;\xf0\xed\xb0\x8e\r&gt;\xd4+q\xcb\xc8yf&gt;\xe4\x93]`\x198\xaf\xa5\xa3\x1eX\xd8\xfc\xd7\x11Y\xe21\x13\xa8\xf7m\xbf\xbc\x90\x0c\n+c\x12 \xa79\x14P\x04\n\x0b\x1c\ns#\'Z\xcc\x06\xd1@\x05|\xb7\xff\x00\x05\x15\xf0\x94\xda]\xdf\x85~0i\x903Mc\xa8\xad\xa5\xd3\x0f\xba\xb11\xea\x7fZ\xe4\xc7\x7f\xbb\xb7\xda\xcf\xf1=,\xa6N8\xf8\xf9\xdd}\xe8\xf9k\xe3G\x87mt\xff\x00\x1f\xcd\xaf\x88#{mF\x14u*\xbc\x03\xdcW\x9cx\xef\xc2\x9a\x1f\x87m[\xc4\xf7\xd7Q\xc3n\xb0\x97\x91w`\x01\xfe5\xf18\xc5|\\\xd7\x99\xfa\xc6W9K\x07\x07\xd7o\xb8\xc5\xf8}\xadx{\xc5\xba\x1ajzf\x96\xc26\x93\xf7sI\xff\x00-\x13&lt;0\xfa\xd4\x9f\x16,-\x05\x84/5\xb9\t \xdaO\xa8\xf5\x15\x95*|\xb5\x11\xeb_\x9a\'\x8e\xfd\xbfD\xb0\xf14:F\xaa\x92C\r\xc4\x9b!\x95\x9b\x8d\xd9\xe3?Z\xf5\r\x17C\x83E\xdb#F\xad\x06\xd2c\x90\xb6q[V\xd2I\x9cq\xe5P\xba=\xb7\xf6$\xd2\xad\xe6\xf8\x99q\xae\xe22\xb6p&lt;\xbb\x94u8\xc2\x7f3\xf9W\xa6\xfe\xc6\xbf\n\xf5\x0f\x8b\xdf\xb6\xef\x8a\xbe*k\xbaYm?G\xbeo\xf4\xa6B3$$,Q{\x8d\xc0\xbf\xbe+\xe90\xb4\xdf\xd5\xa9\xdb\xab&gt;\'2\xad\x18T\xaf6\xf6\x8d\x97\xab?AS\xa6jP;\xd7\xb9\x08\xb5\xb9\xf0+`\xa78\x0b\xd0V\x80F\x80c4P\x041!\xce\xfc\xd3\xa5B\xfd\x0fJ\x9bh\x04%XrV\x8a\x90\x0eO\x00T:\xdf\x864\x0f\x15\xe9\x12\xe8~%\xd1\xed\xefmf\\Kou\x10uo\xc0\xd4\xca\x1c\xf1\xb1Q\x94\xa3$\xd1\xf9\xb9\xfbh\xe9\xb2\xf8K\xc6\x9f\xd8VP\xe2;i\xa6U\x8dT\x80\x17w\xcb\xf9\n\xf9\xd3\xe2f\x9fw\xe3\xe5\xb0\xf0\x1b]\xb2\xc1r\xc5\xaf\x19\xbbB95\xf0y\x96\x99\x9bK\xb9\xfa\xe6G)\x7fg\xc2F\x95\xdc\x0b\xe1\xab\x08-\xbc4\xb1\xc3\x05\xbc+\x0ci\x1a\x0ca{V?\xc4\x8f\x8bw\xba\xcd\xb2\xe9\x89a\x0c\xb7V\xd0\x88\xe1]\x89\xb4~\xb5K\x0e\xe7f\x99\xe8\xca\xb3\x8e\x87\x99^i\xb7\xde&amp;\xdc\xbe1\xb6\x89\x9b\xa4On\xb8\xdb\x93\x90F;\x83^\x93\xe1[\xd9\x07\x86\xff\x00\xb1u\x06\xfd\xf4`\r\xd8\xfb\xca?\x88\x1f\xca\xa7\x17\xee\xb4:r\xbd6\x99\xee\xdf\xb0\xdd\xac\xf3\xeaz\x95\x85\xba1y\xa3U]\xb9\xe4\x93\x80+\xf5\x1bC\xf0\xf6\x99\xe1\xdd6;=2\xc2\x18\xbfv\xab#E\x08S!\x03\x1b\x8e:\x9e+\xeb2\xbf{\x0b\x1b\xf9\x9f\x98\xf1\x1b\x97\xd7,ZU`\xb8"\xa4\xc1\x1dEz\xc7\xce\x85:NW\xf1\xa9\x93\xb2\x01\xb8\xc0\xc0\xa2\xa9l\x04j\xa1F\x05\x14\x00\xd9\xbe\xe55"F\\\x9a\x9e\xa08D\x8ar(r\xe0eE&gt;\x80|7\xff\x00\x05#\xf0\x86\x95k\xe3\xd8\xf5\xbb\x19\xa1\x96G\x89^\xea\x14o\x997\x0cs\xe9\x92\x0f\xe7_\x18\xfcH\xd3\xe6}\x19o4\xeb\x96\x86\xf2R\xd0G"\xff\x00\x06q\xcd|\x1eu\x0fg\x99_\xbd\x99\xfa\xa7\x0fVu2\xa8\xb3\xcb\xf5\xf3\xf1\xe3\xc1\xb7\x8bgi\x7fo\xaaX\xc8\x01\x8d\xbe\xcc\x16E~8c\xc8\xc7^p;V~\xa3\xe2\xdf\x11\xd8\x93t\xfa\x06\xa1\xf6\xe9\xa3\xcb+$[wt\xc7\r\xd3\xf0\xae\xbc?\xb1\xadN\xf7\xb1\xeaJ\x8e2\xd7\x8aO\xd5\xd8\xe5\xf4M_\xe3W\x8a\xb5\x85\x8bX\xd3t\xfb\x0bT\x97&amp;E\xde\xce\xd8\xed\xd4W\xbeZ\xe8\xf1M\xe0+mKz\x9b\xc8\xefAm\xab\x8c)\\\x11\\8\xe9S\x8c\xac\x14}\xa7+\xe7V=\x9b\xe1o\x8d\xae~\x03\xfc\x05\xf1\x7f\xc6\x9d\x18F\xda\xa6\x8f\xa6\xc9q\xa6\xac\x8b\xb8&lt;\x91\x80\xc3#\xb8\x06\xbe\xe2\xff\x00\x82{\xfe\xd9\x03\xf6\xc6\xf8\x11c\xe3\x8db\xca\x0b-m`\x8c\xea6\xd07\xcar\xa0\xefQ\xd8\x1c\xf4\xed_U\x94\xe9\x83\x81\xf9\xcf\x11FO\x15)&gt;\x8c\xf7\x8brI;\xc5L\xfd+\xd6&gt;t\x8c\xb7\xcd\x81R\xaf+\xcdEO\x84\x08\xa4\x90y\x9eZ\xf6\xa2\x9c~\x10\x1bEP\x11\xb73\x00jN\x9c\x01H\x07&amp;;\x8a\xe6\xbe*\xfcE\xd2~\x1axN\xe3\xc4\x17\xe5ZUR-a\xfe\xfb\xff\x00\x850\xdc\xfc\x9c\xf8\xe7\xfbE\xeb\x17\xdf\xb6l~\x1b\xf1\x0e\xa9\xe6\xa7\x8a\xb4\x1b\xb4xf\xe9\xe6\xc4VD\xc7\xa1\x0b\xbc\x0fc\\\xed\xcd\xb4\x9a\x96\xa1\xf67\x9flq\xcb\x94V\\\xfc\xde\x95\xf0\xfcE\x1f\xf6\xa8K\xc8\xfd;\x85el+\x8f\xa1\xa9\xfd\x8c\x8bo \x9dSv\xd1\xb8\x91\x9c\x9f\xa5r\x1e!\xd0L\x9b\xee\xb6*\xaa\xfd\xd3\xf6q\x8f\xady\xf8z\x92\x8c,}T\xbb#\x11\xb4\xc8\xd0\xab\x83\xb9\x99~V\xc7CV?\xb5`\xd2\xb4\xa6\xd1\x12A\x1c\xd36\xe6\xdc\xc7\x9es\x9a\x9a\xde\xfd\xaes\xd6\xf7\x11{\xe3\xef\xc4\xfb\x9f\x0f\xfe\xc8\x9e.\xb2\xb3\xb9\xfd\xf1\xd0^\x18\xc6?\x89\xddw\x13\xf8\x7f*\xf5o\xf8!\x8f\xc5{\xdf\x0c\xa7\x87\xed\xf5\x9b\xb6\xb7\xb3\xd4\xac\x04w\x1b\xbe\xee\n\xe4W\xd8d\xd2o\r\xa9\xf9\xf7\x10C\xf7\x8f\xd0\xfdt\xb3\x92\xda\xf6\xd9o,&amp;Yau\xdc\x92F\xd9\x04z\xe6\xa4?:\xfc\xa6\xbd\x88\xca\xe7\xc7\\\x8d\x86\xd6\xebRo\x019\xaa(\xaa\xa0\xc8K\xd1B\x02T\xfb\xd4\xb2\x1crh\x02?1z\x9a\x1ah\xa3R\xf2\xc8\xa8\xab\xf7\x99\x98\x0cR\xb8\x1c\x1f\xc4\x0f\xda{\xe0\xf7\xc3\x83\xf6}K\xc4kuw\xff\x00&gt;\xb68\x91\x87\xb1#\x81\xf8\xd7\xcc\x7f\x18\xbe0k\xdf\x16&lt;Eq\x7fq1[$\xc8\xb7\xb6\xdd\xc2\'o\xc6\x935\xa7\x16~r\xff\x00\xc1Ag\xbc\xf8s\xfb@|9\xf8\xa3\x1c-\xe4\xdbx\x85`\xb8u\xeac\x91v\x11\xfa\xd7s\xacj-$\x8b\xa8G;$\x83\x0c\xa7w\xe2\r|g\x10\x7f\xbcA\x9f\xa2p\xdc\xedA\xfa\xff\x00_\x91f\xe7\xe2\x94v\xd6\x9en\xa9\x02\xcc\xd8\xc7\x98\x8d\xf2\xb0\xfe\x95\x83\xae|^\xba\xd6\'Im\xf4\x89\x1a5Ll\x8e\x13\xc0\x15\xe7\xd1\xe5Q\xd4\xfa\x95Z1\xdc\xe5f\xf8\x92\xcd\xa9ypB\xb6\xea\x0f\xcd\x1b\x0ej\xac:\xea\xdf\xebM\xa8\xb4\x9et\x9b\xb0\xbf\xdd_zU9e+\x1c\xf5g\xcfvq\xbf\xb5\xdf\xc4\xa3\xa2|#\xb8\xf0\xf5\xa4\xcc\xd7:\xc4\xd1[,q\xfd\xe6\xdc\xe3 {\x9a\xfak\xf6=\xf0\xb6\xa5\xf0\x9b\xc0\xba\n\xc5\x11[\x8d6\xca#\xd7\x82B\x8e+\xea\xf2X\xcb\xea\xe7\xc5\xf1\x07\xfb\xc2^G\xd6\xde\x00\xfd\xb0\xbci\xe0\xdb\x11\x07\x87\xa4X\xa3\xf3&lt;\xd9,\xee\x17|dw\x03\xfb\xbc\xfaW\xae\xfc6\xff\x00\x82\x88x?\xc4\r\x1d\x8f\x8e\xfc;q\xa6\xcc\xcd\xb4\xdc[fT&lt;\xe3$u_\xd6\xbd\xae[l|\x8c\xe8\xdbc\xd3\xd3\xf6\x98\xf8\x04\xcf\x14s\xfc[\xd0\xe1\x92a\x98\xe3\xb9\xd4\x127\xfamb\x08\xae\xd3L\xd64\xcd~\xc2=CE\xbf\x86\xea\xdaa\x98\xe6\xb7\x90:\xb7\xe2)\xf2\xc8\xe7&amp;A\xe5|\xb4R[\x01\x00\x95\x9b\xe7\x075\xc6\xfca\xfd\xa1\xbe\x0f\xfc\x0e\xd1\x9bZ\xf8\xa3\xe3\xab\x1d-\x15IX%\x98\x19\xa4\xff\x00v1\xf3\x1f\xca\x85\x19KD\x07\xe7\x7f\xed\x87\xff\x00\x05\xcd\xd7.\x05\xc7\x84\xbff}#\xfb:\x15fS\xe2\x0b\xe0\x1ag\xed\x94N\x88&gt;\xb9?J\xf9\xa3\xc0\x9f\xf0X/\x8f\xf6\xda\xd2\xe8\x7f\x1a|Oy\xae\xe8w\x0f\xb6i\x96C\x1c\xf0\x0c\xfd\xe1\xb7\x01\xc0\xf4"\xba\xde\x161\x83or\xa3\xbd\xcf\xa6\xb4\x1f\x17x_\xe2\x1f\x87!\xf1\x97\x82u\xb8\xf5\x1d&gt;\xf1wGq\x04\x81\xb9=\x8f\xa3\x03\xd4\x1eEw\x1a|\x11=\x82\xc9\x13\x1c\xe3k\xee\xf5\x1d\x7fZ\xe3\x91\xd4\x8f\x9f?o\xcf\x82\xf7_\x13\xfe\x15\xcc\xda4\n\xda\x8e\x97"^\xe9\xe5\xbf\xe7\xacl\x1c\x0f\xc4\x80+\xc8\xbe\x12\xf8\xee\xd3\xe2\xdf\x80b\xd5\xa5\x87\xcb\xb8Ba\xbc\xb7?~\xdeu\xe1\xd0\x8e\xd85\xf2|EM\xda3\xec}\xa7\x0c\xd4\x8f,\xa0\xf7\xdc\xa7\xe2\xdf\x06\xc1w4zu\xf6\xa7q\xf6q&amp;\xe6\x8e9\xb6\xff\x00\xf5\xeb\xd0\xbc7\xe1\x0f\x85p\xf8Y`\xcc\x92L\xab\xce\xeb\x83\xc6{{\xd7\xcb\xces\xe5V&gt;\xb1S\xe7\x91\xe5\xbe6\xf0\xef\x87t{\xab\x8dGG\xb7\x1f\x7fk+6\xe1\xf5\xaa\xfad6\xda\x7f\x87\x1b\\\xd4\xa6\xf2b\xdb\xbb\xcc\x1d\x14z\x9a\xda\x87&lt;\xda]\xc9\x92QL\xe4~\x0e|1\xd4\xff\x00k\x1f\x8f\xb6\xbe3\xbc\xb6x\xbc\x1f\xe1[\x8504\x8b\xf2\xdd\xdc/\xd7\xb0=k\xee\x1d\x1c\xdbi\xf6\xbe@\\/\xdd^+\xf4,\x05?cB(\xfc\xef0\xad*\xd8\xa963_\xf1\x16\x9f\xe1m"\xe7\xc4:\xc5\xf46\x96v\xf6\xacf\x92i\x02\xa2\x8c\xf5\xc9\xaf\x93\xfe;\xff\x00\xc1K\xc4fO\t|\t\x8dc\xeb\x14\xba\xf4\xcb\xf3\x11\xd0\xf9J\x7f\xf4#\xf8W\xadN7\x92&lt;yH\xf0\xfd\x1f\xe2\x1f\x8au\xedFMk\\\xd6\xee/.&amp;\x93s\xcdq1f\'\xeak\xe9\x1f\xd9\x9b\xfe\n\'\xfbB\xfe\xceW\x11\x7f\xc2\x1d\xe3\xa9\xfe\xc2\xad\x96\xd3o[\xce\xb7a\xe9\xb5\xba~\x15\xdd\xcb\x19S\xe5h\xe3\xb5\xcf\xd0/\x80\xff\x00\xf0\\O\x84~-\xd0\xfc\xbf\x8c\xbe\x19\xb8\xd1u(\xe3\x05\xae4\xf5\xf3`\x9c\xf4\xe0\x1f\x99O~\xe2\x8a\xe1\x96\x16\xa4ed\x1c\xac\xf1/\xda\xfb\xfe\x0by\xe3]^k\xcf\n~\xce\x90\x7fa\xe9\xcc\xcd\x1a\xebS\xa0k\xb9W\xd5A\xc8\x8b\xeb\xd7\xdcW\xe7\xe7\xc4\xaf\x8e\xfe8\xf8\x87\xacM\xae\xf8\xbf\xc6:\x86\xa5y3n\x9a\xea\xfa\xf1\xe5f&gt;\xe5\x89\xae\x8aT\xfd\x92\x0eS\xcf5\xbdp\xddn\x94\xea%X\xafv\xe0\xd6\\~\x1f\xf8\x81\xab\xc0f\xd2|+\xaa^B\xb9&gt;u\xa5\x9b\xc8\xa3\xf1\x00\xd5T\x92\xd9\x95\x18\xf4&gt;\xa2\xff\x00\x82v\xfc\x17\xfd\xab\xfc+\xe2\xcbo\x1aI\xa8I\xa1\xf8GP\x90\x0b\xbd\'R\xdcZ\xf0t\x0c\xb0\x9eP\xfa9\xc7\x1e\xa2\xbfB\xb4\x18\xb7\xe9\xfb6\xed\xdcI\xc7\xa6My\xb5\x1co\xee\x9b\xa5c\x91\xf8\xc1\xe2\xaf\x00x\x17\xc3\xf3_\xf8\xff\x00\xc5z~\x93g\xb4\x86\x9a\xfe\xe1c\x18\xc7\xfbG\x93_\t\xf8\xcbQ\xb2\xf0\x06\xb9q\xfbA\xfe\xce\xfa\x84&gt;%\xf0\xbd\xe5\xf3G\xe2k]\x19\xbc\xd1\x13\xa9\xc0\x9f\xcb\x1c\x86\xc0\xc1\xe3\x91\xcdy9\x96\x17\xebT\x1cO_)\xc6}W\x10\xa4w\x1aO\xc7\xef\x84\x7f\x17\xb4\x88u+YbY\x98\x01"\xc6\xc1Y\x08\xf5\x1f\xfdj\xb1u\xa6\xf8[X\x83\xcf\xd3\xbc]\xfb\xa5e\xdf\x12L\xa3\xbfC\xef_\x08\xe8\xce\x9c\xb9Y\xfa4e\x1a\x94\xd4\xe0\xce?Q\xd1\xf4\xbdk\xc5\xb0\xf8oO\xd4Y\xed\xd5L\x97I\x0c\x87,\x07PNq\xfe5K\xe2w\xc3\x8dk\xc7\xf6K\x0f\x88\xfcO\x0f\x84&lt;\x1bdquu#my\xe3\x18\xe5G\xe9\xb8\xf1^\xae[\x86\xfa\xc6"7\xd9\x1ene\x8c\x8e\x17\n\xdb\xdd\xe8v\xff\x00\xb2\xbf\xedW\xf0\x13P\xf1\x07\xfc(\x8f\x85\x9ae\xcd\xbe\x9bcg\xb3L\xd6&amp;\x87\xcb\x8bP\x90\x13\xb8)8\xdc\xd9\xe7?\xc5\xda\xbe\x8c\xd3\xa0{\x85\xf3\x1e\x1f\xc0W\xdc\xc2*6G\xe7\xf2\x93\x95\xd9O\xe2\xbf\x80|=\xe3\x9f\x85\xba\x9f\x86|_b\xb7:}\xe4k\x14\xf17\x1cn\xceA\xecE|\x0f\xe2_\xf8\'W\xc5A\xe2k\xe7\xf8Q5\xae\xa9\xa4\xc5!k\x18\xe5\x98G&gt;\xdf\xee\x10p\t\x1e\xb9\xe6\xbbiJ1\xdc\xe7\x9cd\xcf3\xd7,\xfcK\xf0\xdbZ\x9b\xc2\xbe)\xd2f\xb1\xd4-\xdfl\xf6\xd7\x11\x95e&gt;\xbc\xf5\x1e\xf5sG\xd6\xaf.d\xf3e\x98\xfa\xaa\xe7\x81]\x91\x9729N\xbbM\xd7\xa5\x8e=\x8c\xe1\xbb\xf2\x01\xfetU\xdd\x81\x93\xe2MfK\x9b\x83\xfb\xcc\xfa\xfbW#\xac\xdf\xc8\xd2\xf9A\xbe^\xbfZ\x89\x01\xf4g\xec\x07\xfb\x11j\xdf\x17\xbcAi\xf1S\xe2\x86\x9c\xd6\xfe\x15\xb3"KK[\xb0U\xb57\x07\x8c\x0f\xf9\xe6;\x9e\xfd+\xf4*\xd3\xc3z&amp;\x93e\xfd\x99\xa3\xe9\x16\xd6v\xea\xb8X\xed#\n\x80{\x01^uj\x9c\xd2~F\x94\xfb\x997\x9e\x1c\x9e\xc6\xe1u-&amp;\xed|\xe8\xdbz\xab\x83\xb7#\xa6k\xcd\xbe%|D\xfd\xaa4\xf4\x97N\xf0\xae\x91\xa7\xdb@AU\xbc\xb5\x88\xc9(\x1e\xa0\x1e3\\\xf1\xe5\xeam)]\xe8x\x11\xf8i\xe3)\xbcd\xde3\xf8\x9f}}\xe29\xe4l\xcdo\xad&amp;\xe5Q\xe8\x83\xa2\x8f\xa5w\x16\x7f\x07&lt;\x07\xa8\xd9\xcb}\xf0\x9d\x13\xc3:\xa5\xd1G\xb8\xb71\xff\x00\xa3\xdc\xb2\xf6`=zg\xae\r?t#+jr&gt; \xfd\x99&lt;)\xe2O\x13\xdc$\x9e\x1dO\x0cx\x89\xa2\xf3"\x92\xcd\xb1\x1d\xe1\xee1\xd1\xbdr9\xc7Z\xf0\x8f\x8b\x1e\r\xf8\xaf\xf0\x0b\xc4F\xebS2\\\xe9W2|\xb7p\x93\xb5$&lt;\x1d\xc3\xf8k\xc5\xc6e\xf4\xe5\'Q-\xcf\xa1\xca\xf3iJ&gt;\xc5\x9e\xad\xfb:E\xa4Z\xf8:\xef\xe2\x9f\x8a\xee\xc5\xbe\x99d\xad%\xd5\xd4\xcb\x85\x90\x8e\x88\xa7\xf8\xbd\xea)&lt;3\xad~\xd4\x1a\x97\xf6\xef\x8c!\xb8\xd3|\x17\x1c\xdb\xec\xf4\xa9&gt;Y\xb5"\x0f\xdf\x97\xfb\xa9\xe8\xbe\xfc\xd6\xb9N\x17\xd8\xd3r\x92\xd5\xbf\xc0Y\xd6*8\x8a\xd1\x82\xfb+_Vo\xea\xbf\x034\x9d^k{\x7f\x08\xe8+\xa7\xc3k\x81\x13\xdb.\xc6\\t\xc1\x1d+\xd6\xbc\t}\xf1K\xc3zlv\x1a\x87\x88&gt;\xd0\xb1\xae\x16K\x88\x837\xe2{\x9a\xf5\xe2\x971\xe0\xe8\xa4n\xc8\x9e)\xf1hM6\xff\x00W\x92h\xd8\xe5\x95F\x14{\xe2\xbb\x0f\x08\xf8&gt;\xcf@\x8d|\xb97I\xc6\xe6j\xb7n\x83R\xb9\xe6?\xb5\xef\xecW\xa0\xfe\xd3ZZ\xf8\x87B\xb8\x87N\xf15\x8c{m.\xdd~[\x95\xff\x00\x9erc\xf4n\xd5\xf9\xf7\xe3\x0f\x06x\xc3\xe1W\x8b.|\x13\xe3}\x1ek\x1dB\xd1\xb6I\x0c\x8b\xf7\xbd\x18\x1e\xea{\x1a\xe9\xc3\xd4\xd3\x94\xe6\xa9\x1b1\xfav\xa4\xc2&lt;\xb4\x9f\xad\x15\xd8fW\xd6o\x1f\xcf\xf3?\xbd\xe9^\xc9\xfb\x00\xfe\xcdzO\xed\x1b\xf1~I\xbci`\xf3x\x7fA\x88\\\xdf\xa0\xfb\xb3\xc8O\xee\xe2oc\xc98\xea\x05s\xd5\x97,[\x1a?J\xc7\x87!\xd3,c\xd1\xf4\xbd\xb0\xda\xc1\x1a\xa40D\x81V5\x1c\x00\x00\x1c\x0fj\xa7$Z\xad\x88\xdbi&amp;~\xb5\xe6\xe9\xd0\xeb\xa7f\x8a\x92x\x87P\xb7o/P\xd3\x97o\xf7\x94u\xa7\xa6\xb5\xa7\xcd\xc9\x81\x96\xb2b\x94Tv#\xbd\xb3\xd15\x05\xfd\xf6\x9f\x1b\xee\xea\xcc\x83&amp;\xb1/\xfe\x1c\xf8F\xfc\x97\x8e\xd4\xc3\'Uh\xdb\x1c\xd2\xd4\x93\x9f\xf1o\xc3\xef&gt;\xc8\xd8M\xae\x0b\x88P\xee\x87\xedJ|\xc8\\r\x1a9\x17\xe6B\x0f\xd4\x1fJ\xf3\xff\x00\x88\xda\x07\x86\xfcy\xe1k\xaf\n|W\x87\xfd\x16\xde\x10\xcd\xa9Y\xe05\xca\x02&gt;FR1\xb8\xf4\xc8\xeez\n\xa7\xefDqr\x84\x94\x97C\x92\xf0\x9f\xc2x~2-\xbd\xae\xabh4\xdf\t\xe9\x12\x88\xf4\x9f\x0e\xda\xfc\xb1\x10\x84a\xe4\xee\xecq\x93\x9e\xfe\x95\xec\xdaW\xc3=\x0fO\x84[Z\xdb+"\x0c*\xb7AE\xf9v.S\xe6\x93\x91\xadm\xe1[[X\xb6An\xab\xf4ZC\xe1\xaf6]\xa8\xbe\xe6\xae/\xab\x12\x95\xcb\xfan\x8d\x1d\x84\x7f\xbb\xf9X\xfd\xe6\xc7Z\xd2\xb6,\x00QN2\xd6\xe2\x8fR\xfd\x8c\x85\x0e\xcfZ\xf3\xef\xdac\xf6V\xf0\x1f\xed1\xe1\x1f\xb1\xea\xd1%\x9e\xbdj\x84i:\xc4q\xfc\xf1\xb7\xf7\x1f\xfb\xd1\x9e\xe3\xb7Q\xcf]c&gt;Y\xa6D\xb5?3~ \xf87\xc4\x9f\x0b\xbcc\x7f\xe0/\x15\xd8\xfd\x9fP\xd3n\x0cW\x11\xee\xce}\x08=\xc1\x1c\xe6\x8a\xf5"\xee\xaes\x98\xf7\xf3\xbc\xd6H\xc7\xae\xe2+\xf5#\xfe\t\xf3\xf0\xbbG\xf8W\xfb5h\xf2Z\xc5\x1b\xdd\xeb\xf1\xff\x00h_\xdc \xe5\xd9\xbe\xea\xf3\xfd\xd5\xfe\xb5\xc9\x89\x95\xa3b\xa2{d\x92#.\xd5^\xb5Y\xd1A\xce\xda\xf3\xcd\x88.!\xb7\x90\xedxA\xac\xdb\xcd6\x1e\xc0{{T\xc8\n\xfeN\xd1\xb35\r\xccn\x06#l\x1cR\xb9I\x99\x9a\xd5\xa2[iW\x1a\xa5\xdf\xef\x16(\xcbm\xf5\xc75\xe3\xc2\xc6\xeb\xc6\xb7\xf7V\xb7\xd3*\xd9\xdc}\x9d\x04?\xdd,\xc5\x89\xfc\x80\x14\xe2Rg\xa7h\xde\x06\xd2|+e\r\x9e\x95\x18\x8e4m\xaa\xa3\xe9\xd6\xb6\xadl\xa1\xdb\xbdF\x0fz\t\xb6\x84\xe8\x8a\xa3j\xfd\xe3\xdc\xd6\xbf\x83&lt;%/\x8c\xa6\xba\xb6\xb5\xbbX\xa5\x85U\xbfx\xbf)\x04\x81\xdb\xf0\xaf/&lt;\xcd\xa3\x91\xe55q\xd2\x8bj\x9a\xbbKv\xae\xafcL=9V\xae\xa9\xae\xa2x\x93\xc2W\x9e\x1aO\xf4\xa9\xa1\x93\x9c~\xec\x9f_qY\x91\xc6\x02y\x83\xbds\xf0\xee}G\x88\xb2\xf5\x8b\xa5\x07\x14\xfa;_\xf04\xa9FXy86M\x13,3F\xad\x9c\xbf\xa5k\xc0\x1a\x0eA\xf7\xaf\xa2\x8c\x8ew\xd8\xfc\xf9\xff\x00\x82\xafxf\xc7J\xf8\xdb\xa5\xf8\xae\x18\xd5d\xd54\x90\'\n&gt;\xf3#c\'\xf0\xa2\xbdJN\xf4\xd1\xcf-$\x7f\xff\xd9'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x006tEXtComment\x00xr:d:DAEewil2SDw:1926,j:28989272107,t:22061918\xba\xf8\xa7\xb5\x00\x00\x03\x00PLTE\xff\xff\xff\xd2\xd6\xdb\xd1\xd3\xd9\x12\r\x07\xff\xfe\xfe\x0f\n\x04\x17\x10\n\xef\xee\xf2\xed\xed\xf1\x0c\x05\x01\xf8\xf5\xf2\xe4\xe8\xf0\xea\xeb\xef\xe4\xee\xe6\xf5\xf4\xf3\xe2\xe6\xef\xdf\xe5\xee\xe5\xeb\xf3\xf2\xf9\xfe\xfc\xfd\xfc\xf0\xf1\xf4\xe4\xe6\xeb\t\x03\x00\xe8\xe9\xed\x1e\x12\n\xdc\xe1\xea\xf3\xf2\xf2\x16\n\x04#\x17\x0e\x1b\x15\x0f\x12\x07\x01\xf1\xf0\xef\xf8\xf9\xfa\xf6\xf5\xf5\x81Q8\xf8\xf6\xf6\xda\xb4\xa0"\x1b\x16\xf3\xf4\xf7\xde\xeb\xe6*\x1c\x12\x88Y?\xd4\xd8\xdf\xda\xde\xe6\x8c]F3#\x17\xde\xe3\xec\x92aE\x82W@\x03\x01\x00\x85T;\xf6\xf6\xf8\xec\xf1\xf8\xc9\xcc\xd1\xd6\xad\x99\x7fO5\xa7qZ)"\x1c\xee\xf4\xfawI3\xf0\xf6\xfc}K2\xd6\xdb\xe2kF3\xbf\x8a}qL7\xaaw_:83yO7}S&lt;\xd3\xb9\xafD0#\xd7\xbe\xb0\xd3\xa6\x94M8+\xdb\xe8\xe1\xcf\xb1\xa2\xe8\xee\xf7\xcf\xa1\x98\x98hMX:+\xe3\xf6\xf6oB+:*\x1fe@-\xe7\xf1\xea\xd3\xe3\xdd\xd1\xa6\x9fE4+\xd1\xb6\xa6\xd8\xdd\xe4a4"\x9emPP1"\xb9\x81l\xd4\xb7\xa9L\'\x17\xce\xad\x9b\xc9\xa9\x95S,\x1a\xb9\x85{`;)\xda\xc6\xbe\xc7\x95\x8bP?6\xca\xa1\x92\xeb\xee\xf4\xda\xc2\xb5\x1b\r\x05\xaczf\xe9\xf5\xf2\xe2\xf0\xeesH0E"\x12\xc4\x90\x84\xb9\x8dv\xcb\x99\x85\xa3ucW5%\xc1\xc2\xc7Z1\x1e\xd1\x9f\x8e\xe1\xe3\xe6\x9fn[\xe1\xbb\xb051,\x9egT4\x19\r\x98tf\xcb\x99\x90\xb4{ig:%\x95dJ\xc9\xde\xdc\xb7\xb7\xbb\x85[F\x8d\\?\x8ecKC)\x1c\xdb\xed\xec*\x14\t\xb0~f\xba\x9d\x8e_?1\xc5\xc6\xcc\xc6\xa0\x8btC-\xd3\xac\xa2\xce\xd0\xd5\xa2rV\xb2\x86kdE5Y?1\xdb\xbb\xa61)#\xea\xee\xe8\xb2xa\xbd\x89t\xb1\x95\x88XG&gt;\xd5\xe8\xe6\xa0\x80s\xdf\xb5\xa8\xb3~r&lt;#\x17\xdd\xf1\xf1\xbd\x94~\x9e\x89\x7f\xd7\xaf\xa7o3*k&gt;(\xb5\x87r\x93|q\x8cwl\xbe\x99\x86\xb0\xaf\xb3\x9eaJKHD=\x1a\r\xce\xe4\xe2\xe1\xc4\xb8H;4\x8ag]\x83eX\xeb\xf9\xf8\xf5\xfa\xfe\xe3\xc8\xc0\xaf\x8f~\xbd\xbe\xc2vTB\x96gY\xbe\x83qsZP\x9f\x9c\x9c\xab\xa9\xae\x85qg??;++(\xa6jS{la\x89RC\xd3\xc0\xb7a\\X\xa8\x87x\x7fQF|92\xa5\xa1\xa6\xc1\xa6\x96xaVzH,}[H\xc5\xae\xa1\xc0\xd9\xd6qL@{J&lt;\x90_Q\xc7\x91{\x8enb\x8d\x88\x89\x98nV\xa8\x81k\xdd\xdf\xe0\x97YBYRM\xc0\xb5\xb4\x82[S\xe5\xcf\xc8\xe7\xe8\xe6\x96\x91\x93cJ&gt;hSG\xc6\xc0\xbf\xde\xcc\xc7\xbd\x8f\x8b\x82}{\xda\xdb\xddjhfxtrb#\x1b\x88AD\xabi_\xd6\xd4\xd4\xa1\x96\x93\x94\x82}\xb6\xa7\xa0\x9bVa\xa9sqz-$\xf1\xf6\xf2\x97O;\xe6\xd7\xd4\xd1\xcc\xcaO\x11\x0c\x8dD2\xec\xe4\xe0\xaeT;q\xd0yH\x00\x00 \x00IDATx\xda\xcc\x98kLSi\x1a\xc7\x9b\x9cKlb\xe6K\x13\xa6\xa1=\xd5q&lt;\x9b\x9a@\x107\xa3sB\x8c\x95\xaa\x05C\xaa\xa1&amp;-\xab\x0e\x82\x90\xb6KI\xb4\\\x14\xb1b\x95\xa84@\x86ae\x97\x1am\xb8\xc4\xe9\xca\xaa\xa9\x11M\xc6\xf5\xc2\xd8\x06\xed\x98\xd58Y\x19\x11S\'\xa0\x06\x84\xc4\xcb\xc4/\xf3e\xff\xcf{p\xb2\xfb\xfd\xe0\xec\xd3+\xb4\xc9\xf9\xe5\xff\xfc\xdf\xff\xfb\xbc\xd5\xe9\xb4(\xde`0\xf0&lt;\xaf\xfb\xbf)\x9e\xee\x86?\x1cx\xfaj\xf1\xa2l\x1d\xc8\xe8\x1f\xbc\xfa\xc1\xefU\x06zL~\xfd\xfd\xf8\xdc\x83\xf4\x8bLz\xf4"\xfdC\xf7\xd9&lt;\xd3\xef$\x1fo\xc8\xfe\xf4\xcd\xb1\x99\xb4\xcf\xe1\xd8\x8cr8&lt;\xc3\xa3/_\xbd\x1d}1\xf3l\xf2\xd5/\xcf\xde\x9c\xfa\xe4s\x03\xaf\xfb\xa8\xc2\xa1Y\x86\x03\x17gf3&gt;\xdf\xe6\x9d[\xff\xba\xd9\x11\xc1\r5\x1c\xf3\xa1b\xe9\xf3\xa3\xbe\xd8\xe8\xcc\xf8\xaf\x06\x9e\xffxX\xb8\x96\xe1\xe9T\xc6\xe3\xf0l\xf6m\xfe\xdb\xf3\x17\xcf\xb7\x12\x92+\xe2B\xe5\xe2\x01\xdd&lt;.|\xe6\x8b\xcd\xbc\\\xca\x1b&gt;\x16\xd5\xd2\xc9}s\xa1\xa8\x07\x85\xfe\xf9&lt;&gt;t\x10H\x83D\x94\xcb\xca\x9a\xcb\xf8\x1c\x1eOftd\xe4\xd7%\xfc\xc7\xe8\xdf\x9f\xc6\x13\x8al\xc5\xd5]j\xef\xc0\xa2\xe2X\xcdV\xb5rqg\x0f\x17\xda\x9a\x9e}\xfbf\xc1\x153\xf0\xffL\x8aF\xc9h6\xb3KC#\x15\xc7\xcc\xca\x18\x08\x18Q\xf4\x8e\xfe$v\x87/\x91\x99{\xb3\xc0\x06\xe3\xf9c)\xa3$\xe1\x8a\xd41\x90\xb9\xe6\x89\xacf\xa3\xc9d\x12M\x82\xc9b\xb1\xe0]@\x14E\xe2\x03\xd9\xf0pf&lt;\x9b_@0^\xb7\xf8XH\x04\x94,\x9b\xad\n\xf5J\x81VF\x90p(A\xaf\xd7\x0bx\xd5g\xe9\x05A\xe0D\x8e\xbei\x8dFs=\x9e\xd8\xdb\xec\x85\x94\xeb\xcf\xb3\xb2$+\xb2d\x86\x10\xb2YV\xacx/\n\xfa\xac\xfc\xfc,0\xe9\xb3\xb2\xf4\xa0\x13\xb2\xf2\xc1E\xa0\x92$G\xa9&lt;\xc3\x99g\x0b\x16\xae\xfc\xa2\x8bII\x96$\t\xee\x91e\xf0\x88\x10Mb*ee\xe5g\x81\t\xaf\xe0\x11\x84|\xa6\x97@\\J4\x1a\x8a\xda]\x89\xb9\x03K\x17\x88\xea\x8b\xd9\x14\xc7\x1cc\x84\xbb8\xba\xaa\xd9*\x89\xd4A\xbd\xde\xa2W\xf5bmdr\xe9\xb3\x04b\x83\xb8)\xc5\x1e\xb2\xa7\xc7_.\x8c\\_$e\x91\xb0$\xd2\x0b\xee\x96\xcc\xb2U1\x93\xc3\t-\x10\xd0\xeb9&amp;\x15L\xa5\xcf\xcf\xd7\x93~`\xe3H\xd3\x90\xdd\x9e\x99\x1b\xf9d!\xb4z\x9a\x969\\\x92\xa8\xb0\xe8\x02F3\xda\x13U@\xcaYLl\xe9\x05,\xe0\x82\xe1\t\x0br\xc1n\xb8\xe5\xe7s\x02:\x19\n%fg\x16B.\xc3\xbfd\xa6\x044R\x03\xc9\xe5R\xe0/\x10\xa0,\x802\x99,\xac\x85\xa4\x18\x99L\x85\xca\xcf\x17\xc0\t\x87\r\xa7gF&gt;\xd3\x9ekQZ\xa4\xb5EYdU\xa2\xa1a\xd8%\xaa\x88\x82z\xe9|A4\x1bE\x06\x06&amp;\x81c&amp;\x9b\xff\x88\xdc/\xca\x8a=\x91\x9eY\xac\xfd\x103%\x91V\xa0\x82\\\xb4\x12\x7fK\x06\xf5\xd2\x1c\x92S\x04\x18\x99\x9fS\xb1\xfe\x8b\x8b\x93\xcd\xd1d"\xbdO\xebH\xe5\xff\x12R[h\xa4k\x03\x8aLE\xb1\xc0\x02\x8b\tB\x0b4@\x0b\x80\x8cF/\x96\x0f\\\xf8T2+v{\xe2{\xad\xb1\x0cS\xa0\x12DD\x95\t9*\xcbx\xb50W!\xac(\xdc\xc1\xc2\xb6B\xda\x80X\x05,\xd4R\x8aYr\x97^4\xcaQ%1\xaeu\x0f\'3\x94\x8eL\xab\xf9\x88\x10\x99\xaf\t\x88\t\x84-\x9a\xf6nk{{\xfb\xfc&gt;\x1d\xc0\xd2\x84\xd7,\x0c]\x14\xcd\x8a59\xab\xf5 qL&amp;\'3W#=\xc5\x0fb\xe9\xd5]\x99\x98\xb0:\x07\x07#\x91\xc8`d\x90*\xd2\xd2\xd2\xd2\x8e\xa6\xa2\x18&lt;\')JtJ\xa7\xe9\x0ed\xf8\xe3\x9c\xba\x97p$\x0c\xf9\x9e\x02\x14\x17C|A\x9e\xf6\x96\\kK\xee`dgc\xf56\xdc\xaa\xab\x1b\xb7m+\xdd^\xbd3\x92\x0b\xb0\x80\x89}\x91\x93\xc4\xa8\xfd-\x96\x8e\x96\\\xafR\xeaH P0\x89T$\x1bA\xb5\x0c\xee\xdd\xb5{gccc\xf5\xba\xf5\x1bs\xdarZ\xf3\xda\xdaV\x1e\xbf\xf1\xe4Ik\xce\x86u\x8d{\xa9\xab\xe478\xd3\x08o\x19\xb4\xc4\xe2u#\x94\x0elpa[\xb0\xc0\x1c\x15ho\xb9\xb4w\xf7\xf6\xa3GK\x1f=\xbaw\xef\xf8X\xc3DOG\xc7P\xcfP\xcfDO\xdd\xd9\xba\xba\x9e\xc2\xb6\x8d\xa5\x90l\x10\x93\x8fh\xd2\x0b\xb2\x92\x98}\xa9\xa9X\xbaYA\xafB\xa9`\xac}\xed\x97\xa0\xd3\xd1s\xa5\x05k\xee\x8c\xddhn\x98\xa8\x9a\xbep!\xe8\xf5\xfb\xbb\xba\xba\xe8\xa9\xbe\x1e`O\x8eo\\\x87^\x82\xcb"rr\xca&gt;3i\xd0\x16\x8b\xf2\x81m)z\xc1\x02\xad\x02\xc6\x96\xbd\xbb\xf7o/-X\xb6r\xc5X\xc3\xfb\x1f\xaal^\xa7\xbb\xc2\xe9t\x97T\x94TT\xe0Q\\\\\xdcT\xff\xd3P\xe1\x8e\xb6\r\xeb\xaa#V\xa3D\x0b84\xfb\xb5\xa6\xf9\x90P[\xc7\xd6:Iel\xb9\xb4k\xff\xd1s\x05\xabV\xb4\x1ej\xae\xad\x9a\x9e\x9e\x0e\xfb\xdd?\xba\xdd\xeenV\xf1\xf8\xf2\xd5T\x95]g\xeb\n\x9f\xb4]\xdf\x1a\xc1\x00D;\xe3\xec\xa4\x96M\xfc&lt;\xa1\xee\xbf\x88s\n\x05\x98\n\x9e:W\xba\xf6NksC\xc3\x00QMw\x86\xfd~\xa7\xd3\xefww\xbb\xcb\xcb\x88\x0b`\xb8w\xd5\xd7M4\xb4\xad\xdf\xea\xb0B-l\x8c#K\xb5\xe4J\x8bX\x85*\x17\xa4j\xbf\xb4\x0bT\x05\xcb\xf2\x0e}Y;00Pe\xb3\x05\x83\xc1i\xbf\xd3\x1f\x0eS+\xe3\xdd\xf1\xb2\xe5T\xbd\xb8U@\xb1\x89\x87\xcf=\x18\xf81w\xd9\xd3\xa7\xb4\xcc\xad\x04\xa6Q\xceB\xdebR\xa1\x81\xa5\x05\xab\xf2\x9ak\x07\xaa\xaa\x80\x85\x02Y\xd8\x1b\xac\x0f;\xd1\xc6\x92\xee\xb2\xf8\xf22\xdcz{{\x01WQy\xed\xea\x0b\x87\xcb\x8a\x01MINeki\xae\x84H\xd3\xde\xffP\xad\x18;\t\xaa:pU\xd9\x88\xca\xeb\r\x06\xeb\xfdn\xa7\xdbI\xaeR\xd5B\x95\xf4\x96W\\;|\xd5\xe3R\x14\xc2\xd2\xf6\x1cKM\xe4\xa8\x85\xccV\xa0\xda\x00\xad\n\xa9}6\x1b{\x02\x17\xa4B\x85\xeb\x9bV\xbbU.\x12\x0b\x8f\xa2\x92\x0b}Wc\xb9\x98\xd1\xa2\xa1\x84\xb6X\xb3X\xdf\x98\xf8\xb2L\xbfi\x95\xb7\xa5\xb0\xe3+\xf2\x14\t\x15\x84VN\xacC\xb7\xd3Y_\x0f\xae\xe2y\xbd\xca\x19V\xd9\x85\xbe[\xcf\x1d\x98\xb019?\xd5\x14k\x0e\xde\xa2cC\x80Q\xedY\xb3*\xaf\xb5\xb9\xb6cHm\x1f\xf5\xcf\xeb\xf5\x86\xdd\xee8\xc0\x9a\xea\x9b\x9a\x9a\x8aW\xab\x9d\x04\xd5\xe5\xef\xca*\x7fx\xe0\xf3(Q\x9c\x7f\x12\x93\xdac\xc1Y\xed\x83\xa0\xfaf\r\xb4\xda\x01\xb1N\xdbN\xdf\xb4y\xc3^,\xc0p\xd0\x1bfz\xb9\xddM\x08\xd2\x0f\xf6\xea-\xba\xfc]My\xc9\xb5Q_H\xc1\xf1\'\x95\xd4\x12\x8b\xd7\xcd\xa8g\t\x93u\xef\xee\xa3\xdf\xac=\x91\xb7\xe3\xcb\x8e\xaf@e\xab\x82L\xe1\xb03L~\'k\x11\x15\x98\x10\xf1\x1f\xecUt\xb9\xa6\xa8\xec\xda\x03_(*\x87\x92\xf6\xc4)^K\xac9\x8c\xc8\x02\x0c\x9f\xbbk\xff\xb9\xb5\xabZ!\xd5\x91\xd3u\xe8\xa1\xcd\x8b\xac\x82V\x84Er\xc5\xe3\xfd\xccXxB\x9e.\xef\xef=\x08\xaa\xa2\xa2\xce\x87\xc0\xc2!\xc3\x9e\x99\xd4\x14k\\\xc1R\xd4\xeb\x8d\x83;\xab\xf7,\xcb;\xc9\x1a\x88\x0e\x9e&amp;\xb1\xfcl\x01\x86)\xb2\xe2\xf1\x83\x07\xfb\xd5x\x9f\x8f\x88\x83hb\xd1\xa6\xce\xc7\xbe$F\xf9D*\xa1\xe9\xe6\xa3\x9bR$\x8ayc\xa4\xb1t\xc3\x8a\xd6\xc2\x8e\x9e\xa1\xd3\xb6:J\x05@!@\xe3\xaa\xab\xe2\x84\x15\xef\xef_\xde\xaf\xfa\x9d\x9ax\xf9rMM\xd9\x99\xdb\xbe\xe4p2\x99L%\x0eh:3\x8f(2\xfdPd\x8eT\xefYybGa\xcfP\xddY[\xf0,\xe2\xe1\'\xbf\xb3;\xbe\x89\xb0\x98Xhb\xbc\x1bH\xb0\xbd\xba\xf9\xd4\x80\xaa\xa6\xacs\x14j%\x92vm\xd5\xe2u\x17S2\'q\x82\xd1\xb1\xad\xe0\xc4\x16\xf4p\xa8\xae.h;\x8bUH\r\x84\xd1\xc3\xec\r\x03\xeb\xee.v\x167\x15SH\xc0\xf0\x80**\xdat\xff\xb6\xcf\x1eJ&amp;\xed\xa1\xcc"-\xb1\xf8\x03II\x92\xd1D\xc7\xbae9\xc8\x86\xda\xa1\xaa!\xda\x07)\x1dp\x0fzo\xda\xc8^N\xc0\xe1\x0e\xa2&amp;Z\x8b\x15%%%\xf0;V\xe2\xfd\xf31\x1c\xc2\xa1V\xe6SM\x8f\x18K\xd2\x9c,\n\x82\xb9q\xcf\xc6\x13\xad\'\'&amp;&amp;\xd4\xfd\xb9\xcaF)o\x0b\xda\x8e0@*\x04E8\xec\xaf\xf4\xfb+1\rV\xfaK\xca!V\xd1\xfd+1;U(\xb3Dc,\x9c\\\x05\xce\nk\xb5=in\xe8\xeb;\xdc\xd7\xf7\xbeo\x80\r\x10G\xf0\\[u\xd3\xc6\xf6lu\x9e\xe8&lt;sf\xfaBgg\xe7\xfd\xca\xcar\xa4iy\xe5c\xa8\x854M\xa55\xfdq\x84\xcf\x9e\x15i\xb4q\xad\xdbp|\xcb\x93+W\x1e?\xbe\xf5\xe0*^\x0e\xf7\xbdox_[KhGn\x0e\xbc&gt;20P\xfb\xbe\xe1\xf0\xe3\xab\xe7\xcf\xdf\xbe\xfd\x8fw\xef\xbe\xfd\xf6\xcc\x99\x1f\xef\x16\xa1\x97\x13\xcf\xed\x80\n)3\xda\x1e\xf6\xf9\x11L\xe2\x9c\xb1q\xc3\xc6\xe3c/b\xb1L\xc6\xe7\x8b\xc5|\xbe\xcc\xad\x07?_\xb9\xd10p\xa4\xf6\xf5\xeb\x81\x81C\x18Uo\xfc|+\xe6\xf1x\x86Q\xbeD"\xfd`\xf4\xdd\xb3\xbbw+\xca\xba\xfe\x1dJ\x85RvyJS,\xde0%\xc2\xf2\xd6m\xeb\x1f&gt;\xf4E\x15\x19\x07dE\x96e\xbcqy\x9e_\xbfw\xa3\xf9\xd0\x9d\x9c\xd7\xb5cw\xc6\xc6\x1e\xed\x1c4\xb3\x1f)\x14\xfaN*\x99I\xcf\xfcr\xb7\xbc\xa2\xec\xb0\x83~\xa8L\xed\xd3\x18kD\x12%ap\xfd\xf5\x87&gt;\xfaIW\xc2\x16\xc9~T\xc2\x01\xdf\xb1u\xdb\xa3;\x8f\xfe\x9es\xe8\xd0\x7fh5\xdf\x97\xb6\xd2,\x8e\x17f+\xdb\xbe\xd87\xc2R\xa8\xad\x9d\xd6B\x03\x91d\xfa\xc2\xdeR$&amp;\x9ak"\xc1\x88\n5\xe4\xa7f\x926\xa4\x81\x89{#\tI\xaf\xd9k\x98\x98\xa0q58v\x86\x9bHT\xd4\xaau3\x92\xa9\x101\xb1\xbf\xee$\xa3EQ\xd4\xcc\xb6\r\xd3\x80\xd6\x85Nq\xa62\xa2C\xdb=O\xda\xfd\x0f\xae\x07\xe2\x0b\xf3\xc2\x0f\xdfs\x9e\xefs\xce\xf1IM\x08\x04=\xbaR\xf8-\x0c\xf9\x05\xa7\xce \xb8\xef*\x7f\xfa\xcf/\xf8\x9a\xa2\xb7\xe7*d\xb1\xf2_,ol\x1e\xa2f\xde/^]\xbf\x9a\x9f\xac\xce\x14|\\\xcb\x9c\xbaTZ\xeaW\x1a:\xec}\xce\x04\x99R\xda\x95J\xfdHi{\x17Z)}\xda\x95|w\xfb\xf1\xaf{\xcd\n\x85\xb7\xe1{(\xae\xdf\xd8\xc5*\xfc\x1a\xb9|\xdb\xeaj\rZ\x81\xa0\xe8\xfa\x14##\xba6\xbdN\x9fr\x92dg\x9fR\xa9\xb4\xebu\xd6\x19\xabuf\x06\xadGFF\xd4M7\xb7\x17\xc6\x14\xb8\xc4]\x83\x9c\xeb\xdf\xecb\x9d{u\xf5\xb3\xe3\x05\x86\xd5m\xb4\x03AK\x10\xb5Zgmo\x87a\x1fFk\x9dU7\xc1\xdd$I\xde\xf9\xfa\x8e\x0e\xa5\x1e\x02Q\xf9\xd5u\x8d\x8d\x02H\xfb\xd4\xd8\xd8\x9eD27\x08\x0eQ\xf9\x80\xdd\xda:\xf7\x10\xae\x9e\x02\xc1\xfc\x00Z\xcb\xd4\x19\xeaj`\x90\xc9ok\xac\xc0\x04\xbd}\xb9\'\n\x91\xbd\\&gt;\x01j\xe9\xda\xbb\xba\x8aN\x9f\xbdu\xc9_\xb7&gt;\x1b\t\x8f\x8d\xdd\x0b\xe3\x92\xc0`\xe5\x93\xdb\x8f\xd9\x1d\x13\x0b\xc3B(\xadK\xc2\xf9\x81\xb66CO\xddH\xd1\xc5\x82/`\x92-\xeaBz\x01V}\xe7n2\x93\xc9\x84TW\x94\xa0\x14\xa8XZt\xf6\xb3\x13\xa7\x1bF\xda\xd5\xf3\x91p8\x1c\x00\xa3\xdf\xaa|R\xf9x{\xed$\x8bb\xbd\'\xcbO\x1d?Q*^\x15\xf6\x08\x04\xba\xf6[\xa5\x83ps_&lt;q\xb1\xe9\x13V\x1f\xa9q\x8cK\xa5\x04S\xd5\x81Jk\xa6\xfaf\xd1\xe9\'\xc7+\x1f&lt;\xac\xe9\xd2\t\x16\x97\x03\xcbxZ\xb6\r-s\xe5\xfar\x8eE\xb5\xd2\x9e\xcb\xed\'\x8eW\xf3W\xf9B\x81}\xa6\xabk\xf0\xf5\xed\x8b\'\xfe~\xb6t\xb0\xba\xbd]\x07\xb5\xb4A\x11\xe3\xae\xa0T*\xaa\xaaW\xdagft\x86\xed\xd2S_\x9c\xbd\xfa\xfa\xeb\xdf\xf5\xfa7\xbe\xe9\xe9\xe5\xb4Y\xb1\x00I\xbc)\xdb\xfd\x96E,\xe3\xfeSCAA\x9bwU\\Uo\xb7Z\xad\xea\x9f\xbe/:}\xfaT\xd3M\xffH\xfb\x8c]iO\x81X\xd0\x96\x0e\x858}\x13\xfa\x19\xbf\xff\xcev\x038D\xc3\x83\x87S\t7\xbfs\xb4E\x966\xe3+pS\xdf\xfb\xe3C\x9c\xcd\xd5\x08\xb9\x7f\xedRA#\xd7\xcb\x17\xc3a\x9b\x10\x18\x0c\x83Mp\x1a\xeb\xea\xc0\x1a\xf4v{}\x96&amp;J\\CC.)V^\x8f,\xc2\xdes\xa7z\xc4\xff\xe3[\xf7\xe2/\xaf\xd6F\xa7e\n\xe8nV*o\xff\xb0\x17\xfdp\xc8\xe6Q\xdc)\xff\xea\xea-\x01\x97\xc3\xe5W]\x11\x8b\xc5KK\xeb\x8d\x82uAc\xa3\xd2\x0eZ5\xf2\xa341\xe4*)q\xb92\xaa\xf3\x1d`^w\x05\x8d\xf3\xeb\x82\rnd\x0f7\x1a\x15\xcd\xe9\x1d\xa3\xd9\xfc\xf3\xed\xca\xc1?\xa9\x0f\xef\xd94\x88b\xf7\xc4\x99"!\x97\xeb\xe3\xf2\xf9^\xbe\x17biii\xa3ob\x02\x8cj\x82\xc3c\xf2I\x1c\x8a\xc5\xcaB*q\xdf\xb5k\x1bK\x1b\xfcT\xca#\x9a4\xe1\xc6\xb4\xd1\x98\xde\x01\xaeH\xd3\xe3YY+]\xcc&amp;\xd6\x85\xb0\xa1\xa0T\xec\xe3\xf9&lt;\x1c\x8e\x8f\x9b\x02*\xf1\xc6\xb5\xbek\x88M\xcc\xf1\xa8\xb0\xa4\xa3dH:\x14\xcf\r\x11!\xcb\xe6\x92\xd7\xbb\xb9\x99H8-\x93\xad\xb52&lt;\xfd[\x1eK2\xd7\xf48R&amp;\xcd\x9cd\xf5\xaa\xde\xab+h\xe0\xfb|\x1e\x0f\x97\xbf\x99\xd8\xe4\xa666\xce\xa7\xe0O\'^n&gt;SE1:\xe9\x80$\xbar\xb9X\x89#3j\x83/\xe4\xa4\x9c\xc4\xa8\xd1^\x99"\xfd\xa7Lf\xdc1\xe2sM?\x84wr\x8e\x93\xec\xaa%(\xf2\xf3\xb9&gt;\xb9\xdc\xe3\xf3%\x9c\x10\t\xa7\xcd\xedNl:m\x18\xc3`t\x08\xb0\x86\\\xf1\\.\xee\x92\x9az\xbb1\x9b\xed\xb9exr\xf4\xc6u\x19n\xc4\x158\xa8\x95\x0e7\xd5DC\xb8\xf9\x02\x9bX\x7f[L5T{\xbd&gt;\xf9\xb3gr9t\xcd6\x8b\r\xc0H\xa7\xd3b\xc10L\xf4\x7f\xac8\x80\xc5\xcaL\x84\x06\x13\rwO\x8e\xf6\xb6\xc8\x148\x8e\xa7wr;i&lt;\xd0\xa4&gt;`\x92;ln\xc0\xffR\x1cI\xa9\xab\xf9|\xae\xdcis\xcaQ\x17j\xb3A\xcb@\x8a\xba\xbb\x01\x8b\xa6\xbb3\x08+\xcf\x15\x8fK\xa4\xbdDH\x84\x89\xbaC7\x9a\x15\xb2f\xdc\x98;\x84\x1c*\xc2\xd5\xcaw\x07L\x8c\xd5\xc5|\xf1b\xca^\x07\x87\xd0\xa7\x02\x9e~\x94\xc4&lt;\x15\xf5M7\xd2JD#,\x17\x0c\xf6\xf9\xd0\x12\x04\x91\xd1\xd0\x16M\xa8W&amp;\xd3\xe2\xc6\xc3CcZ\xd1&lt;\xb7~w\xff\xddn\x9c]\xb5\xe6\x12\xf5\x02\x84%\xc7\x90R\xc0"\xc2\xfa-\x1a\x8d\x86\x86\xca\xc2\x18:#uA\x12c\xb1\x1cDL+%\x08\x07Q\xa1\xd1\x84ZM\xc0\x85\xea]\xdb\xdc\xb2\x18\xde\xdf?\xa0r\xacv\x10\x9f\x07\x9c\xe5B\xb1\x97\xe3\xe3\xa9\xf2H(hjRC\xd1\x18\xa3b\xfa\x11\x16\xcaa,n\x8c\xe7\xe2\xb8\x14\xad\x04\t\xb49!LA\x1c9\xaa\xa2\xa5wnm\xe3\xe9\x87\xe4!\xab\rW!\x8e\xa5\xe6\xe7\xf9\x1c.\xcfCb\x1fC4\x9c\xd4$\x01K\x1e\xa5iM\xa6\xec\xa3Z\xf0\x03,J\x8a\xe4r@\xa7C\x10\xb5AH#\x8e\xcbL\xd3\xe1\xc0\xd3w\x8c\x94\xcd\xfd7jm\x9e;\x97\xd6\xc5|.\x8f\'W1\x0c#\xa2iJ\x83\x82"=\x8c\x86J\x12e\xe3pS\xbbb\x00\x17\x93\x99\xca\xd0\x0eB\x8a\xb6\x95\xa6\xe6\xa0\x02\x07\xae\xe6\xde\xd1p$\xab\xc9\xc4\xd8}\xc9U\xf8\xf9\x9ceI \xe6sx\x9d&lt;\xf0I\x1a\x04\xd2$\x11\x16\x1d\x8d\xd2!M2\xe3p\\\x1f/\x19\xca\xcb\x85\'\t)\x8a2i\xad#\xa8\xc5\xb5\n\xf8\x00\xd6\x1c\xc6H\xbf\x95\xb1\xfc\xc0\xac0`I\x0cT\xf19\x9d&lt;\x1e\xdc5"\xd0*\x89\xb8(&amp;\x8bA*\x93\x99\xd6\xd6\x1b\x8e\x92\x1c\xb2S\x97\xd6Bg\x08\x874\xbf\xa9\x0c\x8e\xe3\x12\\!\x01\xb5"\x8b\x04QR\xa2\xbdp\x8c],\xdc\xe6\x1c\x10\x8a9\x1c\xc8\xa2\\%Bb\x85BIj7\x9b\x15\xd1\x16\xd10EQ\xc3\xc9\xda\x9dC\x14\xe34\x08HH\xcb\xca\x82\xc1\xa0T\x9bNKp\x89\x04\xb0\xbak\xcd.\xb3\x91\xed\x7fV\xa7\x9d\x9e\xba\x01\xc0\xea\xe4y\xe4\xfd"\x0b\xa5\t!,\xb2\x93\x87aN\x12cH\x12\xdb\xadhF.\x95\xc3)Hl\x92p\\\xff\xe7um\x107\x1b\xf1\xb4\x19a\x8df\x82\xb1\xd8\x0e\xdb\xef ^\xb8\xc9\x9e\x1a!\x1f\xb8\xe4\xaa~\xac\x1b\xccA\x93\x17\xab\xd3C&gt;\x93\x93\x9el6\xcb$[Z\x02\x01S\xd0D1\x07\x0c\x95!jMRmP\x0bm\x8dY"iiq\x07\xa4\x80\xf5\x9e\xed\xd7,\x85\x01\xa7\xa0Z\x88\x8a\xde\xa3\xea\x87K\x07\xcc\x92\xda%\xb3\xd1l\x96\xbb\xd13\xeb\xe9LeU!\xd3K\x7f#\x19\xa24\xd4\xc1\x01LB\xa6`\x89\x16\x97\x18\x8d\xd0\x02\xe2\xcb\x01\xb7I\x02\x97\x00\xfb/\x17\x8b\x03\xde\x1aa\x15X\x84\xbc\x1f\xee;\xc4\x05\xf5\x1e\x15E\xaf&lt;}\xd3\xee\x9f\x07\xe7\xe8\xff\x87\xfb\xab7\xfb\x07\xa4\xa5"\x84\xbd\xcb\xa2\xf2\xd2j!\x87\xc6\xb8\xd1\xach\t\'\x82f\xb3\xf9\xfd1\xf6\xa3x\xed\xe6\x80\x10a\xe5\xd5\x82"\xa7\xa3YLD^\xbe\xab\xb4\xebt=B\xaf\xfb\xfe\xfd\xb1\x08\xb4:\xc3\x15\xad\x15\xd1wQ\xaa\xc2\xa4\xd0J\x00\x0bB\xd6\xb2\x98\xe8m\x0e\xe6\x8e\xe4\x99\xe7\xb9\xd7\x06\xa1\xd8\xe7\xe1\xa1\x92\x07\xb9,\xbb \x16e\xe3\xf6)\xedj\xbf\xd5\xaa7\x18V\x1f=z4\x15\xf9\xf2\xcb\x1b\xbd\xa3\xd9\x83(\x95\t\x02\x969\x06\xd5\x05X\x91^\xc9\xfb\xc2\xa3y\xee\xf6k\x0f\xdc\x8bp\x12\xc1\xb8\x80\x8b\x89f\x19j\xd8\xb6\xb9aP\xfbu0\xe2\xeb\xf5\x86\x85\x85\x95\x95\x9f#\xff\xbd\x11\x98\xfe\x06\x9a\x18\r\x81\xb0@\xac\xf4\xda\xf2\xd8\x8b\xa3{\xb1\xf8\xfbV\x95@\xfc\tK$b\xa2\xa4e\xf8\x0f\xf7\xe6z\xa3\xda\xaaC`\xea\xb6\xad\xed\xd9\x95\xd9\xc8\xdcr &lt;m\xc9F\xe9\xd1f\x18\xc4\x00L\xb1\xbc&lt;V|\xec\xa8\xa8\x8e\xbd\xda\xaa\x12Vq\xc0O\xfbQ\x17\x01\xee$\xb2\xb9\xef\xaf\x0e\xdc\xa9kSCX\xfd\xea\x9a\xad\x85\xd9\x95{o#s\x8b\x91\xc5\xe7Q,d\xd2J \xd2\xf8\xda\xf2\xde\x11\xbe\x1e~\xb1 \x84\xb3\xd8\x89\x8a\x1e\xc3\xc8(c\xb3&lt;{\xb9:\xbfUsG\xadF`:\xbb\xb2gpea\xf6\xed\xd4\xd4\x94;\xb2h\xf3t\x9b\x148\xc2Z[\x0b\xef\x1d\x1d\xd5\xb1\xbf\xfe(\x10\x08\xab\xc0\xe7U\xaa\xfe\xfeh\x94L\xb8W\xe7\x17\xd6{j\x00\xc90\xa1\xec\xe88\xcf\xf5\xae\xff\x8fv\xf3\x8bI+M\xc3xm\xb8\xd8\xcc\xd6\xb9\x805Mz\xa3\xd2d\x18Zf!t\x1af&lt;\xc53\xc7\x81\xd2\xa0\x89\xa7\xf4\xd4@\xd1\xf8\xafL\xb4\x8d\x15Cd\x8d\xcd\xb4$\xea\xa2u\xe5\xacd\x84\xb35\x05MZ\x88\x08t\xc6\x06XCh\x98paW$\xa2V\x1b\xa3n5]\xedv\xdc\xb1\xadn;\xdd\xb4\x9b\xec\xfb\x1d\x9d\x9d\xb9\xd9\xec\xecN\xcf\x8br\xfd\xcb\xf3&lt;\xdf\xfb\xbd\xe7\xf0}\xb1\xe8\xe2b(\xb4h[\x0c\r/Y`\x98\x87}\xfa$\xb7X\xbc\xc2\x1d\x9c\xc0Ub$\x17&lt;\x02]\xbe\x1b\x03\xa9\xd6\x1b\x18\x922v\x08\xef9G\x94W\x9a\x9a.\xdbl\xc1\xe1Xv1\x04z-\xa6\xeb\x1aa\x9a7\x18\xe6\xe6\xfc\xaf9Tk\xdfm\x86\xc2\xd5\xea\xee\xee\xce\xcar\x89\xe4\xc1B"\xe1&amp;I\xf7\xfc\x82P~\x0f\xd5\x9f\x1f\xdc}y\xfe\xc9\'\xf1\xf8e\xfb|\x02T\x8bF\x1d\x8d\x8du\xf0\xf4c\x98v\x1c\xe2\x12\xeb\xb7\x0cE%\xd0tS\xde\t\x83=A\xe0\xa4\x95\x86)L2\xe5\x1c\xc9,\xdc{\n\xf5\xe2\xe5\x93\x93\x7f\xf2\xdcU\xcd\'f\x931\x9b\xa3\xb6\xbf\x0e\xaa\xcc1w\x98C*\xde\xf3\r\x8ar\x03\x16L]j\xf5\xec\xbc\x9b0Q\x84\xdd\x8e9GPe2\x19e&amp;#\xbc\xf7"\x9d^\xc2)`N\x0e\x87kA\xad\xfe\xda\xb9\xf8\xaa\x80\xc7e\xb8\xbeu\xe3\xd0ReR\x89\x84 \x080\x10\xda\xfe\x82\xce\xc8Rm\xb1d\x0b\x88.c\xbdz\x934Q\xf3\xe9\xe9\xb9\xb9\xda\xbap\x9d#\xf8\x98K\xac}\xbc\xbfhi\x9aP\xa9\xa5R;\xae\xa2\xac\xe8\xb4\x1dn4\x8e\x18\x8d[\xc6-\xf4\xf7fkk+\x93\xd9\xda\x1a\t\xd4\x8c\xd5\xb4a6\xc74\x94\x03\xb0\xda9\xbd[\xc0\xfb\xbd\x97\xa4\tBf\x97\xc8T:\xca\xdaV\x83\xde\x80_\x1d\x1b{\xb3[[0@\xbcx\xf6\xec\xcb&amp;\xcb\x15aGM=\xb6\x94\x9ev8&lt;\x9e:\xff\xd7\x1c_\x11\x11\xfc\x8da`v\xb6\xcbTj\xb3\xa9\xbef\xac\xa5\xa6\xe5\xcdX\xcd\xd6H\xe6\xe9n\xde_&gt;;\xff\xe4\xfc\x93i__I\xa7\xd3\xa8\x93,\x87\xc3\x9e\xb8\xcf\x11|\xcd\xf1E\x8c}\xdb\rZ\x92 \xec2\xb5\xca\xac\xabG\x07\x03\x03l\xda\x9f\xbe\xd8\xab\x97\xe8,W\xfft\xd8\xe2Z"t2[&lt;\x1c\x8e;\x82\xfew\xb8\xc6z\xed\xd5\x92n"\x01r\x11:c[\xc0\xe9T)1\x14\xf2]\xb9\x80\xee\xe5\xf9\x1b\xa3ap.n\x9b\xc5gmiO|8\x9d\x9a&gt;\xbc\x8f\xe3z\xe4\x8d4h\t&lt;\x91P\x13\x01\xa3\xd1\xacP\xca\x85\x18\x80}7\xf2\x1dT&amp;\xf3\xcf\x7f\\)i\x1a\x8d/\xa7\xe3\xf1`,\x91XL\xc7\xd3\xfe\xe0\xce\xc9|\xae\xb1\x06\x93\rz=\x0e[c\x82\xe8@g\x03\xe5r\x95\n\xc3\x9c\xba\x91\xbdZP\xdb\x97Z\x97[\x97\x86m\xc3\xa1X6\x9a\x8e\xfbwR\x9e\xeaB\x8e\xa9x\x831\xad^KS\x14\x9e\xa0\xccmF\xc0\x12b\x98\x0e\x16\xa5\xf5\xda\xcd\x9b\x1f\\\xbd\xdaRO\xa9\x97.\xb7./\x01U(\x9b\x0c\xf9\xfd\xc1\xd0N\xd9I\xceM\xcc\x8f\x9a\xb4z\r\xaer\xd3n\xdcj\xc5UB\xa1\x193\x9b;\xea\xeb[\xae\xfe\x0e&gt;5&amp;\x95\xbc|\xe9n\xab\xcd\xe6O\xa5\x92\x1b!\x7f(\x98\xf2\x18\xaa\xb9\xc6\xe2\xe5\xdb(\x06\xe4"L\xcc:M\x9ah\xca\x8caf\x9dN\xd7\x81~\x82\x1a\x1bkii\xd3)\xc4==K6[hb";\x91\n\x86B\xfe9\xc3)\xaeo\x90\t\x0e\x05\tB\xabe\x18\x1cv\x1e\x12\x86?\x13n\x06\xa6@G\x1b\xe8\xd5\x82~\x952\xdb%=\xd1X4\x14\x9a\x00\x0f\x17\x17\x17S\x8e2\xc3E\x1e\xe7X\xc3j\xdc\xa4G\x8b\xd1D2dU\x15e\xea\x08\x04:\x02m0\x9dZ\xdb\xda\xac&amp;bjm-\x16\x8b\xd9\x82\x10*\xf8\xf8\x83\xdb\xd3e\x86\xcf\xb8\x8e\x16\xaf\xd0#S\xe1$\x03\xcd\x8b\xb22U\x9a*\x922Q:\x1c\xb6G\n_\x98\x9f\x9aZCg$\xb2\xc9\xe8\xb0\x7fg\x07lLM\xa4\x1c0\xa0\xfe\x95s\xac\x02\x87L\xa52\x91Z=\xe3\xa65\x1a\xed5\x92\xa2\xddV\xf8\xc2\xe7\x01h-\x16]\x8b\xda\xa2\xc9\xe4\xdd`\xd0\x1f\n\x01T6\xdd_W[\xfd\xd91\xae\xb1\x04sb5\xcc\x0eUz-C\xc3\x92\xd4\x92\x8c\x951\xb9\xdd\xee\xf5\xf95(Pk-\x14\xccf\x91\x83)\xa4\xd5r&lt;\x8c^\xe3l\n8\xc7\x02\xb5\xcc` l\xd9Z\xcd\x19\r\xa9\x05?i\xf7&lt;\x8d\xafM\x81\x89\xc0\x15\x0cfS\xa9X(819\x99Z\x1e\r\xd7\xd5\x1a\xfe0\xf7\xf8=nC/8\xec\x91\xa8\xd5\x18\x04\n\x86@M\xc3\x19\x86\xd12\xa4\x97\x0607\x03p\xb8{&gt;\xb9\x96L&amp;S`\xe0\xc4d\xaau\xd9\xe7\xa8\xab-;5\xbd\xfa\x0b\x8e\xe5z\x14\x94\xc8\xd4\xe6\x00e\xc2\xdd\xe8.u\x04z\x05\xa3\xd50\t\x9a\xac\xa2h\x9a\x84\xda\x98Hn@\xc7J}\x9bu-\xfb\xc20\xcb\x1bN\xcd\xad\x1e\xe4\x16\xeb\xd8\xf1\xa8\xc4.\x13\x9a\xa1\'\xe04\xc9x\xf5\xda\x06\xaf\xd7\xadm\xc8\xae3U$MWYiz}#\xb9\xb1\x11\xfa\xe6\xa1?\r\x16\xf67B\xe2/\x02V\x01\x97.\x16l\xfe&amp;)\x11\x8b\xe5\nLg\x0c`V\xe8\xabz}C\xc4\xab\xd5?\xf4z\xa1\xbdZ\xadU\xcc\xfa\xfa\xc3\xc9\x87\x1b\xdfL\xda|q\x8b%\xeck\x04\x0f\x01\xeb\xc08\x87r\t\xf2r\xf6\x87z$2\xb9\xcai\x86-\xc7\xac\xa3\xc0\xc9\x08\x8c\x14\x9aH$\xc2\xd0zM\x03\xe3\xf5F\xbc\x93_=\x9cH[F]\xa3\xe1p\x7f?,\xc4\x8b\xfe\xd5\x0b\xe3\x05\xdca\x1d\xc8\xc99\xb2-\xe9\x91\x881L\x859\x9dN34RR{\xe6\xcc\x99H\xe4s\xf8\xd7\x9f\xd174D"\x9f~\xe5\xb5\xc5}\xe1\xb8k\xd4\x17\x0e7\x96UW\x97-&gt;\xff\x15\x7f\x9c3\x17\x0b\x80*\xe7\xf6,`\xa1&amp;aF{4f\x0e\xb85\xd0\'&gt;\xf8\xf8\xfd\xcf\xaf_\xff\xf8\xfd\xeb\x9fF\xf4\xd7f[\x97G}\x96\xd1Q\x0b\x8a\x96\xc1P\xed\xf1\xb4\x17\xf19rQp\xf8\xbd\x15\x84u&lt;\xd6\x03\\0\xfa\xe9\x9c0\xfea\x18\x160Z\xad\x1a\xf6Z&lt;jc4a/\x1fpY,\x9fX,\x08\x0b\xbaVuu\xf0\xf1\xc1\x13\xfcq.\xe4\x12\x1c\x12\xadl\xe6\xa0:\xb2-\xeb\x91H\x84J\x05\x86)\x95J\x0c\xc2\x0f[\xb5\xb1\r\xd8\x8c\x1dfL(\x14K\xbb\x97\x00\x0b\xa9u\x03\x05\xdep\xca\xe3\xdf\xbc\x00T\xe3o\xfd\t\x96\x97_ZQQ\xb1\x8b\x95s&lt;\xd9\xd3\xd3#\x96\xc3jT(\x95\n\xf8F\xdd\x02\x9d;\xd0)\xba\xbb\xbb;\xbb\xa5\x95\x95.\x0b\x98\x08l\x16\xe8\xa5\x86\xea\xb5\xd5\xbc"&gt;\x7f\x9c\xcfo~{\xbd\x9e\'(xuV\x04P9+\xc5,\xd5\xfe\xe2\x1d\x19\xb2Q,\x17*X.\x05\n?L\x82NE\xb7T*\xed\x94v\x0e\x0c\xa0\xbbZ\xa3\xe8\x801`\x95\xd9\xfc+\x17N\xf0\xa1\xc6/\xf56\x1f{\x1b\x92\xf1\x04\x87\xf3ss\x91R]]\x15\xed\xbbX9Gn\'\xd01\r\xe0\x020\xa1\\\xa8D5\xe3t\xce\xc8\xa5\xe5\x95\x95\x95\xe8\xc5*\x10\xb9\\\xae\x1b&gt;\x88VY:\xfa\xfc`\x11\x9f\xad\xa2\xa1\xde[\x97\xfe\xf8s\x1b\xab\xe0\xddADT\n\xb5\x02j\xe5\xed\xa9\xb5\xff\x8b\xacJ&amp;\x91H\xf6\xb0\xe4\xca\x19%\xa8\x06t\xe2\xf2\x81\x92\x81\x81\xca\xca\x12\xb0\xcf\xd5\xd7\x07\x92\x01\x96cju\xe5\xc3]\xb1\xf8\xfc[P\xbd\xcd\x97~F\x0b\x13\x14\xe6\x0f\xe6\xe6\x8aJA\xa7.@\x03&lt;\x16k?`\xe5|\x8d\xab\xc4\xbb\\r\xa1P\x0e6*\xc0K\x08{\xf9\x00P\x81Z\xa0T_S\x93\x0b-\xc4~\xbb\x1f\xc4\xfa\x1e\xab\x19\xa8\x86\x86\x00\xac\xb0\xe0\xffj\x17\x05\x87\x06sKE@\x85\xb8\xee#\xb2\xae\x95\xbcs9\xdfsmw\xc8%\xdd\x12\x96J!d\xb1P\t\xd9w\x97R\xe8\x0f.W\t&lt;\xc4Z|\x8d\xfd\x0f\xa2\xaf\xdb\xd9d\xc1J&lt;\xc1?\xcdR\xf5\xf6\x8aD\xe0\xe5\xff\x1c\xa8w\x06A\xa8\xdc\xd2R\xc0*\x05\x9d\xee\xdfG`\xe7\xf2\xda\x8f\x1c\xd9\xc5\xda\x7f\xd4\xef\xbc\'\xdeS\x0b\xc5K\xa1\x9c\x99q\xce@\xb8 \xf0\x9d`b\xdfG\x03%\xa0\x96/l\x9b\x7f\xbcy\x00\x895\xfe\x03\xd6\x1d \xbbu\xfa4x\xc9\xfb\xe9=\xf3U&gt;2\x0f\x15\xab\x16\xe2\xea\xea\x02\xb0\xfb\x15\x07Y,$\x16\x80\xed`r6[\xc8&lt;\xf4\xcdf^!\x86\x0e!\xad\xecs\xf5\x81\x9b\x08ky\xea\xef\x9by\x1f\xfe\x18k\xe8\xce\x9d;,\xd5\xe9\xe6\xe6\x9f\xea%\xaf\xf0ln\xee#\x96\x89EB\x8a\xfd\x9b+\'/\xaf\xb8\x18\xc9\xb5\xcb\xe5\xd7\xc9\xc42\x99\x90\xc5\x12\xb2r\xcd@\xf4\xe5\xe8\xfdeI\xd3@%\xfa\x11mtY\xedy\xde~a7Y\x10\xad"\xfe\x8f\xa8@8\x04\xf6\xea\x98\xe0\xbfy\xf7\xee`\xaeH\xc4"\xb1b\x95\x96\x8aD\x10\xad\n\xe4#pu\xe5\xfd\xf2\xe8\xb9=.\xa8b?&amp;\x93\xc9eB\xb5\x9a\xcd\x17\x8b5\xa3@=^\x8aV\xe3\xc0GMM\xadf\xff\x17G\x0f\x80X\'\xf8\x88\xecD\x11\x7f\xa8\x0ba\xddBX\xb7\x9a\x9b{\x11\xd8\xd9K\xaf\x04\xff\x81G (\x00\xf3\x06\x07\x07\xcf\xfe\xc0%*\x1d\x1a\x1a\x12\xe5\x96\xeeq\xdd\xe9\x02\xac_\x9f;W\xbc\xdb#Pm\xff\xab-\xf3wm$\xbd\xc3\xb8\xa4f\x06\xcfx~,3\x0c3\x8d4+\x18q3\x8b\xce\xdch\x08hu\n\x06\xbb2*|\xc4.\xc4\xfd\x05*\xe4m\xc2\x84\xa9\x0e\x82u\x1b\xdc\x88e:7Nq\\\x13Pa\xc8\xfa@W\xd8M:\x15\xc7\xe6\xc29\x18|\xd8`X\xb3\xc5m\xaeXH\x93\xe7y_Y^\x92|\xbd\xd8\x92\xe5\x91&gt;z\x9e\xe7}\xde\xd7\xeb\x8d\xed\r\xe8\xb5\xfd\x94`\x9f\x0b\xae\xa7\xe2/\xec\x08&gt;\xb8~\xff\xcf\xed\xbf\xfc\xfb\xde\x1bu\x89%Z\xab\xfb\x04\xab\xe7A\xac],\xca#\xbe\xdax&lt;\xfe\xf0\xff\xbc\xac\xd7I\x84\x94#S{\xd2\xc1\x1d\xdc\xd8\xc1\x1b\xdb\x11rqN\x0f\xab\x85\r\xb9\xe2x\xa5W\xed\xfa\x87\xed\r\x06\x0c%\xf1T\x94*\xd2\xff\x92\x7fa\xc7|\xf9\xe5?~\xfc\xe9\xae\xea\x8e(\x96\xec\x07\xdc"\xd6\xd17K\x0f\x8f\x0e\xe0\xc6\xfa\xc1\xee\xee\x18^6\xff\x07\xac\xb5\xbe\'i\xd6\x01\x06\xc1\xd6\xf7\x8ew\xc8urxx\x8a\x0bO\xf6\x0fO\xf7O\xf7\x8bb\xa8\xd9~\x920_K\xacx\xfazc\xb9\x1eeC\x00\x8brq\x07\xfa\xf4\xd9\xab\xef\xafk\x85\xb0\x90X8A\x0c\xba]h~\xbaL\xd67\x07B\xac\x03b\xedq\xfe\xdbK\xac\xd8G0&lt;\xce;\x8c{\x8bIx\x93e\x88\xd5N\xcbE=h\xb6\xe9\xb7\x93\x95\\\xd5Z&lt;\xff+j\x95\xbb\xd0g\xd2E\x80}\xc2\xbf\xfd\x7f\xfa\xf2\xb3W?\\\x97W^\xa7+\xc5\xeauz\xbdAo\xa4i\xda\xa3\x83\xa0j\x81j&lt;\xe6k\xef\x8d\xcf\xce\xb0.?\xaa\x8c\x16\xdf\xc2\x01\x9a\x93P\xc7\xe0:\xa0s\xb8\xd7:}sX\xb8\xfa\xcd\xfd\x95\xe7y\xae\x1b\xfb\xb6\xdd\xf6\x93\xfe\xb2%D\xb5f\x7f~\xc6\xba\xe7\xbe\xfd\xf9\x8bW/\xa8\x17\x06\xf7^\xbd\xbe.\x87\xee*X\xc0\x1a\x0c\x9eX\x96\xa6\r\xbag\x0fTG\xa0\xe20\xcb\xa0:\x1b#\xfe\x1f\xc0&amp;e\xdb;\x81\x1e\xfb77;\'- \xc1\xbc\x9d\xd6\xcdU\xf5p\xbf\x85\x07\x02\xdd\xf3t\xdds\x81U\xf4cM\xb3\xda\x96?\\\xa5\x0bd\xfd_\xff\xf4\xec%\xb1~\xb3\xf5\\rq]&gt;\xff\xe2\xe7\xeb\xf2^\x06KRu\xba\xf6\xa0\x1b\xfb\x96\x85/\xbd1\xb1NZ-\xae\xc4#\xae\xb2\xbd\xf1\x98T{R5\xb9\x99\xaf\xaf\x83\xabX[\x0bD\xb7\x1f\x1f\xd7\xd70\xf5\xe3\x02y\xbf\xa9\x0b\xa8\x82X&gt;\\\x04\x97e\xb5)X\xed1`_\xe1T\xf8\xc9\xc6\xf6\x16\xb8^\xbc\xd8\xda\xda\xde\xc6\xc9\xf5\xab\xbb\xdaUa\xd3B\xb1\x06A5\xb0;Z\xec\xb7-s\xd4\xe9}7\xb2\x11\xf7\x13b\xb1\x83\x04\x96\xf0R@q\xb04\x0fZ\x07\xa7o\n\x01#\xc7\x00UP\x17\xa3K\xad\xa0YQ\xb8}\x9fr\x99\xe0z\x14\x0c\x92\x95\x10\xec\xeb\xaf\xb7\xa9\xd6\x17\x82k\xeb\xf9\xb7w\xbf\\\xb9\xfah\xa5\xd5`\xd0\xb1\xed\xae\xdf\xf7\xdbm\xd3\xc6y\xa23\xd2U\x95F\xa8:;\xa0^\x0f\x0c\xc3\x08\x8e\xbd\xd6\xee\xd9\xae\xe4\xfaP99\xdc?)\n/\x14H\xc1\x12l\x85\x85\xab]\xa1X\xe1\xfaU[3-\x13z\xf9\x1f\xf5*\x9a\xf5\xee\xa7\x8d\x8d\xedM\xfe\xa7 \xb0\xf0;\xd1\xb7\xd9}\xe1jK\x0b{\xbd.\xb0\x06\x08U\xe2\x03\xcb\xd2\x06\xbd\'#\x95X\xaa\xe2`\x14\'\xc0\x18a\xda\x88\xc2\x06\xd6%\xc0\xa8\x1d{\xcb0\xbc"x\x94k-\x08\xd6\xf0]\xb0y\x9e\xca\x01\x16\xa7\n\xb9@E.\x16~\xcc\xaa\xa8\xc6q?\xb9\xff\xf5\xe7\xbfommnn\xfe\xee\xb7\x9b?~\xff~Z\xd5F\xf6H\xae\xc2%\x95m\x0f:\x80\xa2\x8bv\xb7\xd7\xd19\xaa\xaa\x88\t\x00f\x80\xca1\x1ac.S\x1a\xbaW\t\xd7\x9a\xcd\xb5\xe0Jm&gt;RQ4\xbc\x85z\xfdFW\x94\xba\xc0\xe2ZL\xaa\x9a\x90\xab\x8d\xe7\'\x18:,\xc6\xa7\xe10)\xca\xeb\xbb\xbb\xeb\xeb\xbb\xbf\xfd\xe1\x8f\xaf\xcf\xf3Z\xa2\xd9\x1d\xb4\xba\x98N\x87P\xc4\x12\x17\x02\xab\xd3\x85\x89\xa4Zr\xd5ib\xdap\x02\xa8u$\xa8\x88\xd5$O\xe8\x16\xcd\x8f=J[n\x00\x00\x04iIDAT\xb9\x0cZ\x19(\x9e\xaa,\xd5\xe2\x87[\xfa\xb6i\xd2E\xcb\xe7$\xfda\x82\xfd\xa8_\xcd\xa7Y\xad\x96e\xf9\xe4_\xaf\xdfOp{hb\xc1\xe1_\x07L\xd4\n`\xb8c\x9b\xa0\xb2Lm\xd0\x11X\x82\x8bdu\x05X\x8d\xd41\xd6\x1a\xee\xe9\xc9\xe9\xe1\t\x0b\xb6\x926\xc8\xa3\\\x19\xcd\xe6\x92\x0c\xf9\xe3\'\xc8\xa5\x0b,d\xcb\x93\xd5U\xb3\x11/S\xd8H\xc1\xa8X\x9cM.f`\xc9\xa6yVN\xe7\xf3\x9c\x8c\xfd\xa4m\x0f\xc4\x87M$|\xe9&lt;\xb1m\xca\x05\xac\x91\xc0R\x85\x89B\xb0\x80X\xf00l\x8c\x1c&amp;\x1a[\xf3^\xa5\x91\x12\xc6(\xea\xa4\xc2\xcd04\xb80 V\xa0\xeaR,\x9dk\x11X\xfeT\xc3\x93\x0b#!\x16\x13\x16O\x17\xb7\x8b\xd9d\x0e\x962\xe9S\xb0\xd9\xc5\x050\xf32\x1e&amp;()\x99+L\xf7;\xcb\x96\xc1\x84\x8b\\\x89K\x17U\xe9\xa2A\x0f\x9b\xe9(%C#\xa8\x1bP\xab\x11"_\xae\xda\x14r\x85k!\x12H\xb9\x80%\xde\x0f\xb9d\xe8\xdbYB\xb9\xf8\xf4"^\xf1\xf4\xe2\xed\xdb\xc5\xc5l6\xc98\xf9t\x9a\xcf\'\x8b\xdb\xcbw\xef\xde\x02v\x0e\xd48\xf1-\x9b?nw\xb0\xa7\xf2B\x93r\x8dT\xf5\xc1Bx\xa88\xf5\xa8\xe1\x18@S\x9aLz\xa8\x1ai%\x02\x16(&lt;\xaf)\xe5j\x86\x86!\xd5r\x96X\xba.\xc5r\xcdj\xc6wN\x1fQ\x12q\xbe\xb8|w{~1\x99L\x84y\xf9b\x01\xa5\x16\xe7\xb7\x97\xcb\xb9]\x007\']6\xad\xfaC\x13\x0b\xe6\xc1\xc5\x07*\x19\xfa\xa0\x1e\xa5\n\xb0t\x87\x02\xa5\\\x98\x15\'m\xa4\x86\x11*\xdeR\xadG\x0f\x15]u\xc8\xa5\x0b.`Y\xc9\xd4\xb5EF\xfca5\xbf}{y{\xf9^X\x98M~\xc9\'\xd3\xd9\xf9\x02\x8c\x00\x03\xdf\xe2\xfc\x1c\xf7rl\xe7\x8b\xf3I\x86\xc0\x95\tvD\xfa/\xc3\xa5&gt;\xeaUGu\x19\x91\x12\x86\r7B{6S\xd5\x88\xa2\x8a\x0e\xb9\xc0\x17x)\xb1\xc20\x8c\x0c\x03\x0f\xcbh\xa1\xee&gt;R\x0b.\xd6\xd8\x0cUdhrq{{\x8e\x17_0X\xf7\xd3j\x9e\x979n\xc1\xc5\x99\x18\x11\xb1\xac\x9fLg\x17\x13.\x87Z\xd2&amp;\x16\xd42\xf5\x07,ZA\x13\xebND\xac\xc8\x8d\x8c\xb0\xd9\x8c\xd4\x08X\xae\xd3h\x18\x02\xab\xb1\xc2\nB\xe1!\xb0\xa4\x8b\x8c\xbc\xe6\x9an;F\x84\xe6\x8b\xcb\xcb\xf3Y&gt;\x9f1U\x17\x8cP-\x89\xcbj\x99eeY\x83_y&gt;\x9f\xcf\'\x9c\xbcL\xfcl2\x9b\xe3\xa2\xb2:l\x9bB-W[\xb9(\xeb\x14TN\xe4(4\x0c.5\x1b\x14#\xaa\x14:\\\x94X\rb\xa5\x11|D\xbe\xa8\xd3\x03\x96.\x0b\xc24\x93\x1a"\x84\xd0\xe4\xd58\x9bS\xa7)\x92S\xc68\x8e\xf5e\xe3\xa3\xf9\xcb\xb2\xcc\xe4\x94\xfd\xb6_\xe2\xc7P\x1f\xb58\x91X\xc8\x96p\x118\x0f\xd1\xaa#\xf2\x8e\x13\xa4\x9e\x8e\xf4\xa4\x8e\x1b\t,/J\x1b\x88\x93\x073S\x81\x95\xa6L\xbd\xc4rVK\x11\xcfi\x9a.t\x99,.\xe6\x89\x05\xc2\xb2\x14\x1bc\x1c\x0f\xb1\x0c4vF\x92\xc8\xf3X\xcc\xe9\xf7\x11\'\xab\x06k\x01\xc8*\xb3\xf8\x04\xa6\xc5\xed2\xea(\xcaJ,\xaa\x83x\xa5\xae\xc2\xb0\xbb*\xee\xa6\x95+\xe1\xa2a\xe8A\x03\\i\x04\xaa\x08rE\x0e.s\x84Z\xca\x8a\x8bh\xc3\xe9|\x1a\xfb&amp;0\x86}\xc4\xac\xaca\xf3\xd1L[P\xa35\xb0Y\xf6\xe5\x8e\x94\xf8\xec\xd4a\t\x03\xb9q\xfa,\x07r\x99\x1a\xce\xd2\x8eB\xbd\x1e\x04s"\xc4&gt;r\xc1\x16R\xac L+E\xa1\xb2"\x0c\xdd\x91T\x14\x8b\x9a9\x8a\xc4\xc2\xe5\xa4\xb2u\x8dckm\xa8\xe0\xe3\x80\x82JE\xcd\xd7PMI\xa2\xbb\xa6(M\xb0bE\x0c\xc9\x04*T\xd6\xc0\xb6p\x9f;U[\x88E,\x8dX\xdd\x11\x9ex\xe4,\x05\x93X\x1e%\xf3\x10x#\xeaU\xbc+OT\xc4GX\x98\xc8\x91X\xe2B\xa1\x96\xady\x02\xcb\xf2y\x10\xe0\rh\xd3\xaf\xd6\xfax\xcd\x91\xcd\x87\x06K\xae\xa1`\xf2\xc9\x8e\x13M;\xe1\xb9A\xf4\xbbt\xd1\xd5p\x14\xeb\xc2E`9+,EbEE\x84lG\x9d\x8a\xea\x17\x113\xaf*\xc8\xbc\xf00\x15b-G^G0\x8a\x058@\xe14\'\xb0\xd8\xa91\x0ew\xfe@ba\xa31\xdbI\xb2\xa4\xf2-~\xcbF\xe6h\x9f\xe0\xc2\x08\xcdqB\xec8\xabw\xbd\xc4r&lt;\xf4\x83\xea\xe2\xd5\xa3\xae\xf6\x1f\x90!\xcc\rX\xe3\xf7\xb9\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67208333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>784709</v>
+        <v>784886</v>
       </c>
       <c r="B8" t="n">
-        <v>1963</v>
+        <v>1977</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abel Ferreira</t>
+          <t>Gabriel Milito</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x006tEXtComment\x00xr:d:DAEewil2SDw:1926,j:28989272107,t:22061918\xba\xf8\xa7\xb5\x00\x00\x03\x00PLTE\xff\xff\xff\xd2\xd6\xdb\xd1\xd3\xd9\x12\r\x07\xff\xfe\xfe\x0f\n\x04\x17\x10\n\xef\xee\xf2\xed\xed\xf1\x0c\x05\x01\xf8\xf5\xf2\xe4\xe8\xf0\xea\xeb\xef\xe4\xee\xe6\xf5\xf4\xf3\xe2\xe6\xef\xdf\xe5\xee\xe5\xeb\xf3\xf2\xf9\xfe\xfc\xfd\xfc\xf0\xf1\xf4\xe4\xe6\xeb\t\x03\x00\xe8\xe9\xed\x1e\x12\n\xdc\xe1\xea\xf3\xf2\xf2\x16\n\x04#\x17\x0e\x1b\x15\x0f\x12\x07\x01\xf1\xf0\xef\xf8\xf9\xfa\xf6\xf5\xf5\x81Q8\xf8\xf6\xf6\xda\xb4\xa0"\x1b\x16\xf3\xf4\xf7\xde\xeb\xe6*\x1c\x12\x88Y?\xd4\xd8\xdf\xda\xde\xe6\x8c]F3#\x17\xde\xe3\xec\x92aE\x82W@\x03\x01\x00\x85T;\xf6\xf6\xf8\xec\xf1\xf8\xc9\xcc\xd1\xd6\xad\x99\x7fO5\xa7qZ)"\x1c\xee\xf4\xfawI3\xf0\xf6\xfc}K2\xd6\xdb\xe2kF3\xbf\x8a}qL7\xaaw_:83yO7}S&lt;\xd3\xb9\xafD0#\xd7\xbe\xb0\xd3\xa6\x94M8+\xdb\xe8\xe1\xcf\xb1\xa2\xe8\xee\xf7\xcf\xa1\x98\x98hMX:+\xe3\xf6\xf6oB+:*\x1fe@-\xe7\xf1\xea\xd3\xe3\xdd\xd1\xa6\x9fE4+\xd1\xb6\xa6\xd8\xdd\xe4a4"\x9emPP1"\xb9\x81l\xd4\xb7\xa9L\'\x17\xce\xad\x9b\xc9\xa9\x95S,\x1a\xb9\x85{`;)\xda\xc6\xbe\xc7\x95\x8bP?6\xca\xa1\x92\xeb\xee\xf4\xda\xc2\xb5\x1b\r\x05\xaczf\xe9\xf5\xf2\xe2\xf0\xeesH0E"\x12\xc4\x90\x84\xb9\x8dv\xcb\x99\x85\xa3ucW5%\xc1\xc2\xc7Z1\x1e\xd1\x9f\x8e\xe1\xe3\xe6\x9fn[\xe1\xbb\xb051,\x9egT4\x19\r\x98tf\xcb\x99\x90\xb4{ig:%\x95dJ\xc9\xde\xdc\xb7\xb7\xbb\x85[F\x8d\\?\x8ecKC)\x1c\xdb\xed\xec*\x14\t\xb0~f\xba\x9d\x8e_?1\xc5\xc6\xcc\xc6\xa0\x8btC-\xd3\xac\xa2\xce\xd0\xd5\xa2rV\xb2\x86kdE5Y?1\xdb\xbb\xa61)#\xea\xee\xe8\xb2xa\xbd\x89t\xb1\x95\x88XG&gt;\xd5\xe8\xe6\xa0\x80s\xdf\xb5\xa8\xb3~r&lt;#\x17\xdd\xf1\xf1\xbd\x94~\x9e\x89\x7f\xd7\xaf\xa7o3*k&gt;(\xb5\x87r\x93|q\x8cwl\xbe\x99\x86\xb0\xaf\xb3\x9eaJKHD=\x1a\r\xce\xe4\xe2\xe1\xc4\xb8H;4\x8ag]\x83eX\xeb\xf9\xf8\xf5\xfa\xfe\xe3\xc8\xc0\xaf\x8f~\xbd\xbe\xc2vTB\x96gY\xbe\x83qsZP\x9f\x9c\x9c\xab\xa9\xae\x85qg??;++(\xa6jS{la\x89RC\xd3\xc0\xb7a\\X\xa8\x87x\x7fQF|92\xa5\xa1\xa6\xc1\xa6\x96xaVzH,}[H\xc5\xae\xa1\xc0\xd9\xd6qL@{J&lt;\x90_Q\xc7\x91{\x8enb\x8d\x88\x89\x98nV\xa8\x81k\xdd\xdf\xe0\x97YBYRM\xc0\xb5\xb4\x82[S\xe5\xcf\xc8\xe7\xe8\xe6\x96\x91\x93cJ&gt;hSG\xc6\xc0\xbf\xde\xcc\xc7\xbd\x8f\x8b\x82}{\xda\xdb\xddjhfxtrb#\x1b\x88AD\xabi_\xd6\xd4\xd4\xa1\x96\x93\x94\x82}\xb6\xa7\xa0\x9bVa\xa9sqz-$\xf1\xf6\xf2\x97O;\xe6\xd7\xd4\xd1\xcc\xcaO\x11\x0c\x8dD2\xec\xe4\xe0\xaeT;q\xd0yH\x00\x00 \x00IDATx\xda\xcc\x98kLSi\x1a\xc7\x9b\x9cKlb\xe6K\x13\xa6\xa1=\xd5q&lt;\x9b\x9a@\x107\xa3sB\x8c\x95\xaa\x05C\xaa\xa1&amp;-\xab\x0e\x82\x90\xb6KI\xb4\\\x14\xb1b\x95\xa84@\x86ae\x97\x1am\xb8\xc4\xe9\xca\xaa\xa9\x11M\xc6\xf5\xc2\xd8\x06\xed\x98\xd58Y\x19\x11S\'\xa0\x06\x84\xc4\xcb\xc4/\xf3e\xff\xcf{p\xb2\xfb\xfd\xe0\xec\xd3+\xb4\xc9\xf9\xe5\xff\xfc\xdf\xff\xfb\xbc\xd5\xe9\xb4(\xde`0\xf0&lt;\xaf\xfb\xbf)\x9e\xee\x86?\x1cx\xfaj\xf1\xa2l\x1d\xc8\xe8\x1f\xbc\xfa\xc1\xefU\x06zL~\xfd\xfd\xf8\xdc\x83\xf4\x8bLz\xf4"\xfdC\xf7\xd9&lt;\xd3\xef$\x1fo\xc8\xfe\xf4\xcd\xb1\x99\xb4\xcf\xe1\xd8\x8cr8&lt;\xc3\xa3/_\xbd\x1d}1\xf3l\xf2\xd5/\xcf\xde\x9c\xfa\xe4s\x03\xaf\xfb\xa8\xc2\xa1Y\x86\x03\x17gf3&gt;\xdf\xe6\x9d[\xff\xba\xd9\x11\xc1\r5\x1c\xf3\xa1b\xe9\xf3\xa3\xbe\xd8\xe8\xcc\xf8\xaf\x06\x9e\xffxX\xb8\x96\xe1\xe9T\xc6\xe3\xf0l\xf6m\xfe\xdb\xf3\x17\xcf\xb7\x12\x92+\xe2B\xe5\xe2\x01\xdd&lt;.|\xe6\x8b\xcd\xbc\\\xca\x1b&gt;\x16\xd5\xd2\xc9}s\xa1\xa8\x07\x85\xfe\xf9&lt;&gt;t\x10H\x83D\x94\xcb\xca\x9a\xcb\xf8\x1c\x1eOftd\xe4\xd7%\xfc\xc7\xe8\xdf\x9f\xc6\x13\x8al\xc5\xd5]j\xef\xc0\xa2\xe2X\xcdV\xb5rqg\x0f\x17\xda\x9a\x9e}\xfbf\xc1\x153\xf0\xffL\x8aF\xc9h6\xb3KC#\x15\xc7\xcc\xca\x18\x08\x18Q\xf4\x8e\xfe$v\x87/\x91\x99{\xb3\xc0\x06\xe3\xf9c)\xa3$\xe1\x8a\xd41\x90\xb9\xe6\x89\xacf\xa3\xc9d\x12M\x82\xc9b\xb1\xe0]@\x14E\xe2\x03\xd9\xf0pf&lt;\x9b_@0^\xb7\xf8XH\x04\x94,\x9b\xad\n\xf5J\x81VF\x90p(A\xaf\xd7\x0bx\xd5g\xe9\x05A\xe0D\x8e\xbei\x8dFs=\x9e\xd8\xdb\xec\x85\x94\xeb\xcf\xb3\xb2$+\xb2d\x86\x10\xb2YV\xacx/\n\xfa\xac\xfc\xfc,0\xe9\xb3\xb2\xf4\xa0\x13\xb2\xf2\xc1E\xa0\x92$G\xa9&lt;\xc3\x99g\x0b\x16\xae\xfc\xa2\x8bII\x96$\t\xee\x91e\xf0\x88\x10Mb*ee\xe5g\x81\t\xaf\xe0\x11\x84|\xa6\x97@\\J4\x1a\x8a\xda]\x89\xb9\x03K\x17\x88\xea\x8b\xd9\x14\xc7\x1cc\x84\xbb8\xba\xaa\xd9*\x89\xd4A\xbd\xde\xa2W\xf5bmdr\xe9\xb3\x04b\x83\xb8)\xc5\x1e\xb2\xa7\xc7_.\x8c\\_$e\x91\xb0$\xd2\x0b\xee\x96\xcc\xb2U1\x93\xc3\t-\x10\xd0\xeb9&amp;\x15L\xa5\xcf\xcf\xd7\x93~`\xe3H\xd3\x90\xdd\x9e\x99\x1b\xf9d!\xb4z\x9a\x969\\\x92\xa8\xb0\xe8\x02F3\xda\x13U@\xcaYLl\xe9\x05,\xe0\x82\xe1\t\x0br\xc1n\xb8\xe5\xe7s\x02:\x19\n%fg\x16B.\xc3\xbfd\xa6\x044R\x03\xc9\xe5R\xe0/\x10\xa0,\x802\x99,\xac\x85\xa4\x18\x99L\x85\xca\xcf\x17\xc0\t\x87\r\xa7gF&gt;\xd3\x9ekQZ\xa4\xb5EYdU\xa2\xa1a\xd8%\xaa\x88\x82z\xe9|A4\x1bE\x06\x06&amp;\x81c&amp;\x9b\xff\x88\xdc/\xca\x8a=\x91\x9eY\xac\xfd\x103%\x91V\xa0\x82\\\xb4\x12\x7fK\x06\xf5\xd2\x1c\x92S\x04\x18\x99\x9fS\xb1\xfe\x8b\x8b\x93\xcd\xd1d"\xbdO\xebH\xe5\xff\x12R[h\xa4k\x03\x8aLE\xb1\xc0\x02\x8b\tB\x0b4@\x0b\x80\x8cF/\x96\x0f\\\xf8T2+v{\xe2{\xad\xb1\x0cS\xa0\x12DD\x95\t9*\xcbx\xb50W!\xac(\xdc\xc1\xc2\xb6B\xda\x80X\x05,\xd4R\x8aYr\x97^4\xcaQ%1\xaeu\x0f\'3\x94\x8eL\xab\xf9\x88\x10\x99\xaf\t\x88\t\x84-\x9a\xf6nk{{\xfb\xfc&gt;\x1d\xc0\xd2\x84\xd7,\x0c]\x14\xcd\x8a59\xab\xf5 qL&amp;\'3W#=\xc5\x0fb\xe9\xd5]\x99\x98\xb0:\x07\x07#\x91\xc8`d\x90*\xd2\xd2\xd2\xd2\x8e\xa6\xa2\x18&lt;\')JtJ\xa7\xe9\x0ed\xf8\xe3\x9c\xba\x97p$\x0c\xf9\x9e\x02\x14\x17C|A\x9e\xf6\x96\\kK\xee`dgc\xf56\xdc\xaa\xab\x1b\xb7m+\xdd^\xbd3\x92\x0b\xb0\x80\x89}\x91\x93\xc4\xa8\xfd-\x96\x8e\x96\\\xafR\xeaH P0\x89T$\x1bA\xb5\x0c\xee\xdd\xb5{gccc\xf5\xba\xf5\x1bs\xdarZ\xf3\xda\xdaV\x1e\xbf\xf1\xe4Ik\xce\x86u\x8d{\xa9\xab\xe478\xd3\x08o\x19\xb4\xc4\xe2u#\x94\x0elpa[\xb0\xc0\x1c\x15ho\xb9\xb4w\xf7\xf6\xa3GK\x1f=\xbaw\xef\xf8X\xc3DOG\xc7P\xcfP\xcfDO\xdd\xd9\xba\xba\x9e\xc2\xb6\x8d\xa5\x90l\x10\x93\x8fh\xd2\x0b\xb2\x92\x98}\xa9\xa9X\xbaYA\xafB\xa9`\xac}\xed\x97\xa0\xd3\xd1s\xa5\x05k\xee\x8c\xddhn\x98\xa8\x9a\xbep!\xe8\xf5\xfb\xbb\xba\xba\xe8\xa9\xbe\x1e`O\x8eo\\\x87^\x82\xcb"rr\xca&gt;3i\xd0\x16\x8b\xf2\x81m)z\xc1\x02\xad\x02\xc6\x96\xbd\xbb\xf7o/-X\xb6r\xc5X\xc3\xfb\x1f\xaal^\xa7\xbb\xc2\xe9t\x97T\x94TT\xe0Q\\\\\xdcT\xff\xd3P\xe1\x8e\xb6\r\xeb\xaa#V\xa3D\x0b84\xfb\xb5\xa6\xf9\x90P[\xc7\xd6:Iel\xb9\xb4k\xff\xd1s\x05\xabV\xb4\x1ej\xae\xad\x9a\x9e\x9e\x0e\xfb\xdd?\xba\xdd\xeenV\xf1\xf8\xf2\xd5T\x95]g\xeb\n\x9f\xb4]\xdf\x1a\xc1\x00D;\xe3\xec\xa4\x96M\xfc&lt;\xa1\xee\xbf\x88s\n\x05\x98\n\x9e:W\xba\xf6NksC\xc3\x00QMw\x86\xfd~\xa7\xd3\xefww\xbb\xcb\xcb\x88\x0b`\xb8w\xd5\xd7M4\xb4\xad\xdf\xea\xb0B-l\x8c#K\xb5\xe4J\x8bX\x85*\x17\xa4j\xbf\xb4\x0bT\x05\xcb\xf2\x0e}Y;00Pe\xb3\x05\x83\xc1i\xbf\xd3\x1f\x0eS+\xe3\xdd\xf1\xb2\xe5T\xbd\xb8U@\xb1\x89\x87\xcf=\x18\xf81w\xd9\xd3\xa7\xb4\xcc\xad\x04\xa6Q\xceB\xdebR\xa1\x81\xa5\x05\xab\xf2\x9ak\x07\xaa\xaa\x80\x85\x02Y\xd8\x1b\xac\x0f;\xd1\xc6\x92\xee\xb2\xf8\xf22\xdcz{{\x01WQy\xed\xea\x0b\x87\xcb\x8a\x01MINeki\xae\x84H\xd3\xde\xffP\xad\x18;\t\xaa:pU\xd9\x88\xca\xeb\r\x06\xeb\xfdn\xa7\xdbI\xaeR\xd5B\x95\xf4\x96W\\;|\xd5\xe3R\x14\xc2\xd2\xf6\x1cKM\xe4\xa8\x85\xccV\xa0\xda\x00\xad\n\xa9}6\x1b{\x02\x17\xa4B\x85\xeb\x9bV\xbbU.\x12\x0b\x8f\xa2\x92\x0b}Wc\xb9\x98\xd1\xa2\xa1\x84\xb6X\xb3X\xdf\x98\xf8\xb2L\xbfi\x95\xb7\xa5\xb0\xe3+\xf2\x14\t\x15\x84VN\xacC\xb7\xd3Y_\x0f\xae\xe2y\xbd\xca\x19V\xd9\x85\xbe[\xcf\x1d\x98\xb019?\xd5\x14k\x0e\xde\xa2cC\x80Q\xedY\xb3*\xaf\xb5\xb9\xb6cHm\x1f\xf5\xcf\xeb\xf5\x86\xdd\xee8\xc0\x9a\xea\x9b\x9a\x9a\x8aW\xab\x9d\x04\xd5\xe5\xef\xca*\x7fx\xe0\xf3(Q\x9c\x7f\x12\x93\xdac\xc1Y\xed\x83\xa0\xfaf\r\xb4\xda\x01\xb1N\xdbN\xdf\xb4y\xc3^,\xc0p\xd0\x1bfz\xb9\xddM\x08\xd2\x0f\xf6\xea-\xba\xfc]My\xc9\xb5Q_H\xc1\xf1\'\x95\xd4\x12\x8b\xd7\xcd\xa8g\t\x93u\xef\xee\xa3\xdf\xac=\x91\xb7\xe3\xcb\x8e\xaf@e\xab\x82L\xe1\xb03L~\'k\x11\x15\x98\x10\xf1\x1f\xecUt\xb9\xa6\xa8\xec\xda\x03_(*\x87\x92\xf6\xc4)^K\xac9\x8c\xc8\x02\x0c\x9f\xbbk\xff\xb9\xb5\xabZ!\xd5\x91\xd3u\xe8\xa1\xcd\x8b\xac\x82V\x84Er\xc5\xe3\xfd\xccXxB\x9e.\xef\xef=\x08\xaa\xa2\xa2\xce\x87\xc0\xc2!\xc3\x9e\x99\xd4\x14k\\\xc1R\xd4\xeb\x8d\x83;\xab\xf7,\xcb;\xc9\x1a\x88\x0e\x9e&amp;\xb1\xfcl\x01\x86)\xb2\xe2\xf1\x83\x07\xfb\xd5x\x9f\x8f\x88\x83hb\xd1\xa6\xce\xc7\xbe$F\xf9D*\xa1\xe9\xe6\xa3\x9bR$\x8ayc\xa4\xb1t\xc3\x8a\xd6\xc2\x8e\x9e\xa1\xd3\xb6:J\x05@!@\xe3\xaa\xab\xe2\x84\x15\xef\xef_\xde\xaf\xfa\x9d\x9ax\xf9rMM\xd9\x99\xdb\xbe\xe4p2\x99L%\x0eh:3\x8f(2\xfdPd\x8eT\xefYybGa\xcfP\xddY[\xf0,\xe2\xe1\'\xbf\xb3;\xbe\x89\xb0\x98Xhb\xbc\x1bH\xb0\xbd\xba\xf9\xd4\x80\xaa\xa6\xacs\x14j%\x92vm\xd5\xe2u\x17S2\'q\x82\xd1\xb1\xad\xe0\xc4\x16\xf4p\xa8\xae.h;\x8bUH\r\x84\xd1\xc3\xec\r\x03\xeb\xee.v\x167\x15SH\xc0\xf0\x80**\xdat\xff\xb6\xcf\x1eJ&amp;\xed\xa1\xcc"-\xb1\xf8\x03II\x92\xd1D\xc7\xbae9\xc8\x86\xda\xa1\xaa!\xda\x07)\x1dp\x0fzo\xda\xc8^N\xc0\xe1\x0e\xa2&amp;Z\x8b\x15%%%\xf0;V\xe2\xfd\xf31\x1c\xc2\xa1V\xe6SM\x8f\x18K\xd2\x9c,\n\x82\xb9q\xcf\xc6\x13\xad\'\'&amp;&amp;\xd4\xfd\xb9\xcaF)o\x0b\xda\x8e0@*\x04E8\xec\xaf\xf4\xfb+1\rV\xfaK\xca!V\xd1\xfd+1;U(\xb3Dc,\x9c\\\x05\xce\nk\xb5=in\xe8\xeb;\xdc\xd7\xf7\xbeo\x80\r\x10G\xf0\\[u\xd3\xc6\xf6lu\x9e\xe8&lt;sf\xfaBgg\xe7\xfd\xca\xcar\xa4iy\xe5c\xa8\x854M\xa55\xfdq\x84\xcf\x9e\x15i\xb4q\xad\xdbp|\xcb\x93+W\x1e?\xbe\xf5\xe0*^\x0e\xf7\xbdox_[KhGn\x0e\xbc&gt;20P\xfb\xbe\xe1\xf0\xe3\xab\xe7\xcf\xdf\xbe\xfd\x8fw\xef\xbe\xfd\xf6\xcc\x99\x1f\xef\x16\xa1\x97\x13\xcf\xed\x80\n)3\xda\x1e\xf6\xf9\x11L\xe2\x9c\xb1q\xc3\xc6\xe3c/b\xb1L\xc6\xe7\x8b\xc5|\xbe\xcc\xad\x07?_\xb9\xd10p\xa4\xf6\xf5\xeb\x81\x81C\x18Uo\xfc|+\xe6\xf1x\x86Q\xbeD"\xfd`\xf4\xdd\xb3\xbbw+\xca\xba\xfe\x1dJ\x85RvyJS,\xde0%\xc2\xf2\xd6m\xeb\x1f&gt;\xf4E\x15\x19\x07dE\x96e\xbcqy\x9e_\xbfw\xa3\xf9\xd0\x9d\x9c\xd7\xb5cw\xc6\xc6\x1e\xed\x1c4\xb3\x1f)\x14\xfaN*\x99I\xcf\xfcr\xb7\xbc\xa2\xec\xb0\x83~\xa8L\xed\xd3\x18kD\x12%ap\xfd\xf5\x87&gt;\xfaIW\xc2\x16\xc9~T\xc2\x01\xdf\xb1u\xdb\xa3;\x8f\xfe\x9es\xe8\xd0\x7fh5\xdf\x97\xb6\xd2,\x8e\x17f+\xdb\xbe\xd87\xc2R\xa8\xad\x9d\xd6B\x03\x91d\xfa\xc2\xdeR$&amp;\x9ak"\xc1\x88\n5\xe4\xa7f\x926\xa4\x81\x89{#\tI\xaf\xd9k\x98\x98\xa0q58v\x86\x9bHT\xd4\xaau3\x92\xa9\x101\xb1\xbf\xee$\xa3EQ\xd4\xcc\xb6\r\xd3\x80\xd6\x85Nq\xa62\xa2C\xdb=O\xda\xfd\x0f\xae\x07\xe2\x0b\xf3\xc2\x0f\xdfs\x9e\xefs\xce\xf1IM\x08\x04=\xbaR\xf8-\x0c\xf9\x05\xa7\xce \xb8\xef*\x7f\xfa\xcf/\xf8\x9a\xa2\xb7\xe7*d\xb1\xf2_,ol\x1e\xa2f\xde/^]\xbf\x9a\x9f\xac\xce\x14|\\\xcb\x9c\xbaTZ\xeaW\x1a:\xec}\xce\x04\x99R\xda\x95J\xfdHi{\x17Z)}\xda\x95|w\xfb\xf1\xaf{\xcd\n\x85\xb7\xe1{(\xae\xdf\xd8\xc5*\xfc\x1a\xb9|\xdb\xeaj\rZ\x81\xa0\xe8\xfa\x14##\xba6\xbdN\x9fr\x92dg\x9fR\xa9\xb4\xebu\xd6\x19\xabuf\x06\xadGFF\xd4M7\xb7\x17\xc6\x14\xb8\xc4]\x83\x9c\xeb\xdf\xecb\x9d{u\xf5\xb3\xe3\x05\x86\xd5m\xb4\x03AK\x10\xb5Zgmo\x87a\x1fFk\x9dU7\xc1\xdd$I\xde\xf9\xfa\x8e\x0e\xa5\x1e\x02Q\xf9\xd5u\x8d\x8d\x02H\xfb\xd4\xd8\xd8\x9eD27\x08\x0eQ\xf9\x80\xdd\xda:\xf7\x10\xae\x9e\x02\xc1\xfc\x00Z\xcb\xd4\x19\xeaj`\x90\xc9ok\xac\xc0\x04\xbd}\xb9\'\n\x91\xbd\\&gt;\x01j\xe9\xda\xbb\xba\x8aN\x9f\xbdu\xc9_\xb7&gt;\x1b\t\x8f\x8d\xdd\x0b\xe3\x92\xc0`\xe5\x93\xdb\x8f\xd9\x1d\x13\x0b\xc3B(\xadK\xc2\xf9\x81\xb66CO\xddH\xd1\xc5\x82/`\x92-\xeaBz\x01V}\xe7n2\x93\xc9\x84TW\x94\xa0\x14\xa8XZt\xf6\xb3\x13\xa7\x1bF\xda\xd5\xf3\x91p8\x1c\x00\xa3\xdf\xaa|R\xf9x{\xed$\x8bb\xbd\'\xcbO\x1d?Q*^\x15\xf6\x08\x04\xba\xf6[\xa5\x83ps_&lt;q\xb1\xe9\x13V\x1f\xa9q\x8cK\xa5\x04S\xd5\x81Jk\xa6\xfaf\xd1\xe9\'\xc7+\x1f&lt;\xac\xe9\xd2\t\x16\x97\x03\xcbxZ\xb6\r-s\xe5\xfar\x8eE\xb5\xd2\x9e\xcb\xed\'\x8eW\xf3W\xf9B\x81}\xa6\xabk\xf0\xf5\xed\x8b\'\xfe~\xb6t\xb0\xba\xbd]\x07\xb5\xb4A\x11\xe3\xae\xa0T*\xaa\xaaW\xdagft\x86\xed\xd2S_\x9c\xbd\xfa\xfa\xeb\xdf\xf5\xfa7\xbe\xe9\xe9\xe5\xb4Y\xb1\x00I\xbc)\xdb\xfd\x96E,\xe3\xfeSCAA\x9bwU\\Uo\xb7Z\xad\xea\x9f\xbe/:}\xfaT\xd3M\xffH\xfb\x8c]iO\x81X\xd0\x96\x0e\x858}\x13\xfa\x19\xbf\xff\xcev\x038D\xc3\x83\x87S\t7\xbfs\xb4E\x966\xe3+pS\xdf\xfb\xe3C\x9c\xcd\xd5\x08\xb9\x7f\xedRA#\xd7\xcb\x17\xc3a\x9b\x10\x18\x0c\x83Mp\x1a\xeb\xea\xc0\x1a\xf4v{}\x96&amp;J\\CC.)V^\x8f,\xc2\xdes\xa7z\xc4\xff\xe3[\xf7\xe2/\xaf\xd6F\xa7e\n\xe8nV*o\xff\xb0\x17\xfdp\xc8\xe6Q\xdc)\xff\xea\xea-\x01\x97\xc3\xe5W]\x11\x8b\xc5KK\xeb\x8d\x82uAc\xa3\xd2\x0eZ5\xf2\xa341\xe4*)q\xb92\xaa\xf3\x1d`^w\x05\x8d\xf3\xeb\x82\rnd\x0f7\x1a\x15\xcd\xe9\x1d\xa3\xd9\xfc\xf3\xed\xca\xc1?\xa9\x0f\xef\xd94\x88b\xf7\xc4\x99"!\x97\xeb\xe3\xf2\xf9^\xbe\x17biii\xa3ob\x02\x8cj\x82\xc3c\xf2I\x1c\x8a\xc5\xcaB*q\xdf\xb5k\x1bK\x1b\xfcT\xca#\x9a4\xe1\xc6\xb4\xd1\x98\xde\x01\xaeH\xd3\xe3YY+]\xcc&amp;\xd6\x85\xb0\xa1\xa0T\xec\xe3\xf9&lt;\x1c\x8e\x8f\x9b\x02*\xf1\xc6\xb5\xbek\x88M\xcc\xf1\xa8\xb0\xa4\xa3dH:\x14\xcf\r\x11!\xcb\xe6\x92\xd7\xbb\xb9\x99H8-\x93\xad\xb52&lt;\xfd[\x1eK2\xd7\xf48R&amp;\xcd\x9cd\xf5\xaa\xde\xab+h\xe0\xfb|\x1e\x0f\x97\xbf\x99\xd8\xe4\xa666\xce\xa7\xe0O\'^n&gt;SE1:\xe9\x80$\xbar\xb9X\x89#3j\x83/\xe4\xa4\x9c\xc4\xa8\xd1^\x99"\xfd\xa7Lf\xdc1\xe2sM?\x84wr\x8e\x93\xec\xaa%(\xf2\xf3\xb9&gt;\xb9\xdc\xe3\xf3%\x9c\x10\t\xa7\xcd\xedNl:m\x18\xc3`t\x08\xb0\x86\\\xf1\\.\xee\x92\x9az\xbb1\x9b\xed\xb9exr\xf4\xc6u\x19n\xc4\x158\xa8\x95\x0e7\xd5DC\xb8\xf9\x02\x9bX\x7f[L5T{\xbd&gt;\xf9\xb3gr9t\xcd6\x8b\r\xc0H\xa7\xd3b\xc10L\xf4\x7f\xac8\x80\xc5\xcaL\x84\x06\x13\rwO\x8e\xf6\xb6\xc8\x148\x8e\xa7wr;i&lt;\xd0\xa4&gt;`\x92;ln\xc0\xffR\x1cI\xa9\xab\xf9|\xae\xdcis\xcaQ\x17j\xb3A\xcb@\x8a\xba\xbb\x01\x8b\xa6\xbb3\x08+\xcf\x15\x8fK\xa4\xbdDH\x84\x89\xbaC7\x9a\x15\xb2f\xdc\x98;\x84\x1c*\xc2\xd5\xcaw\x07L\x8c\xd5\xc5|\xf1b\xca^\x07\x87\xd0\xa7\x02\x9e~\x94\xc4&lt;\x15\xf5M7\xd2JD#,\x17\x0c\xf6\xf9\xd0\x12\x04\x91\xd1\xd0\x16M\xa8W&amp;\xd3\xe2\xc6\xc3CcZ\xd1&lt;\xb7~w\xff\xddn\x9c]\xb5\xe6\x12\xf5\x02\x84%\xc7\x90R\xc0"\xc2\xfa-\x1a\x8d\x86\x86\xca\xc2\x18:#uA\x12c\xb1\x1cDL+%\x08\x07Q\xa1\xd1\x84ZM\xc0\x85\xea]\xdb\xdc\xb2\x18\xde\xdf?\xa0r\xacv\x10\x9f\x07\x9c\xe5B\xb1\x97\xe3\xe3\xa9\xf2H(hjRC\xd1\x18\xa3b\xfa\x11\x16\xcaa,n\x8c\xe7\xe2\xb8\x14\xad\x04\t\xb49!LA\x1c9\xaa\xa2\xa5wnm\xe3\xe9\x87\xe4!\xab\rW!\x8e\xa5\xe6\xe7\xf9\x1c.\xcfCb\x1fC4\x9c\xd4$\x01K\x1e\xa5iM\xa6\xec\xa3Z\xf0\x03,J\x8a\xe4r@\xa7C\x10\xb5AH#\x8e\xcbL\xd3\xe1\xc0\xd3w\x8c\x94\xcd\xfd7jm\x9e;\x97\xd6\xc5|.\x8f\'W1\x0c#\xa2iJ\x83\x82"=\x8c\x86J\x12e\xe3pS\xbbb\x00\x17\x93\x99\xca\xd0\x0eB\x8a\xb6\x95\xa6\xe6\xa0\x02\x07\xae\xe6\xde\xd1p$\xab\xc9\xc4\xd8}\xc9U\xf8\xf9\x9ceI \xe6sx\x9d&lt;\xf0I\x1a\x04\xd2$\x11\x16\x1d\x8d\xd2!M2\xe3p\\\x1f/\x19\xca\xcb\x85\'\t)\x8a2i\xad#\xa8\xc5\xb5\n\xf8\x00\xd6\x1c\xc6H\xbf\x95\xb1\xfc\xc0\xac0`I\x0cT\xf19\x9d&lt;\x1e\xdc5"\xd0*\x89\xb8(&amp;\x8bA*\x93\x99\xd6\xd6\x1b\x8e\x92\x1c\xb2S\x97\xd6Bg\x08\x874\xbf\xa9\x0c\x8e\xe3\x12\\!\x01\xb5"\x8b\x04QR\xa2\xbdp\x8c],\xdc\xe6\x1c\x10\x8a9\x1c\xc8\xa2\\%Bb\x85BIj7\x9b\x15\xd1\x16\xd10EQ\xc3\xc9\xda\x9dC\x14\xe34\x08HH\xcb\xca\x82\xc1\xa0T\x9bNKp\x89\x04\xb0\xbak\xcd.\xb3\x91\xed\x7fV\xa7\x9d\x9e\xba\x01\xc0\xea\xe4y\xe4\xfd"\x0b\xa5\t!,\xb2\x93\x87aN\x12cH\x12\xdb\xadhF.\x95\xc3)Hl\x92p\\\xff\xe7um\x107\x1b\xf1\xb4\x19a\x8df\x82\xb1\xd8\x0e\xdb\xef ^\xb8\xc9\x9e\x1a!\x1f\xb8\xe4\xaa~\xac\x1b\xccA\x93\x17\xab\xd3C&gt;\x93\x93\x9el6\xcb$[Z\x02\x01S\xd0D1\x07\x0c\x95!jMRmP\x0bm\x8dY"iiq\x07\xa4\x80\xf5\x9e\xed\xd7,\x85\x01\xa7\xa0Z\x88\x8a\xde\xa3\xea\x87K\x07\xcc\x92\xda%\xb3\xd1l\x96\xbb\xd13\xeb\xe9LeU!\xd3K\x7f#\x19\xa24\xd4\xc1\x01LB\xa6`\x89\x16\x97\x18\x8d\xd0\x02\xe2\xcb\x01\xb7I\x02\x97\x00\xfb/\x17\x8b\x03\xde\x1aa\x15X\x84\xbc\x1f\xee;\xc4\x05\xf5\x1e\x15E\xaf&lt;}\xd3\xee\x9f\x07\xe7\xe8\xff\x87\xfb\xab7\xfb\x07\xa4\xa5"\x84\xbd\xcb\xa2\xf2\xd2j!\x87\xc6\xb8\xd1\xach\t\'\x82f\xb3\xf9\xfd1\xf6\xa3x\xed\xe6\x80\x10a\xe5\xd5\x82"\xa7\xa3YLD^\xbe\xab\xb4\xebt=B\xaf\xfb\xfe\xfd\xb1\x08\xb4:\xc3\x15\xad\x15\xd1wQ\xaa\xc2\xa4\xd0J\x00\x0bB\xd6\xb2\x98\xe8m\x0e\xe6\x8e\xe4\x99\xe7\xb9\xd7\x06\xa1\xd8\xe7\xe1\xa1\x92\x07\xb9,\xbb \x16e\xe3\xf6)\xedj\xbf\xd5\xaa7\x18V\x1f=z4\x15\xf9\xf2\xcb\x1b\xbd\xa3\xd9\x83(\x95\t\x02\x969\x06\xd5\x05X\x91^\xc9\xfb\xc2\xa3y\xee\xf6k\x0f\xdc\x8bp\x12\xc1\xb8\x80\x8b\x89f\x19j\xd8\xb6\xb9aP\xfbu0\xe2\xeb\xf5\x86\x85\x85\x95\x95\x9f#\xff\xbd\x11\x98\xfe\x06\x9a\x18\r\x81\xb0@\xac\xf4\xda\xf2\xd8\x8b\xa3{\xb1\xf8\xfbV\x95@\xfc\tK$b\xa2\xa4e\xf8\x0f\xf7\xe6z\xa3\xda\xaaC`\xea\xb6\xad\xed\xd9\x95\xd9\xc8\xdcr &lt;m\xc9F\xe9\xd1f\x18\xc4\x00L\xb1\xbc&lt;V|\xec\xa8\xa8\x8e\xbd\xda\xaa\x12Vq\xc0O\xfbQ\x17\x01\xee$\xb2\xb9\xef\xaf\x0e\xdc\xa9kSCX\xfd\xea\x9a\xad\x85\xd9\x95{o#s\x8b\x91\xc5\xe7Q,d\xd2J \xd2\xf8\xda\xf2\xde\x11\xbe\x1e~\xb1 \x84\xb3\xd8\x89\x8a\x1e\xc3\xc8(c\xb3&lt;{\xb9:\xbfUsG\xadF`:\xbb\xb2gpea\xf6\xed\xd4\xd4\x94;\xb2h\xf3t\x9b\x148\xc2Z[\x0b\xef\x1d\x1d\xd5\xb1\xbf\xfe(\x10\x08\xab\xc0\xe7U\xaa\xfe\xfeh\x94L\xb8W\xe7\x17\xd6{j\x00\xc90\xa1\xec\xe88\xcf\xf5\xae\xff\x8fv\xf3\x8bI+M\xc3xm\xb8\xd8\xcc\xd6\xb9\x805Mz\xa3\xd2d\x18Zf!t\x1af&lt;\xc53\xc7\x81\xd2\xa0\x89\xa7\xf4\xd4@\xd1\xf8\xafL\xb4\x8d\x15Cd\x8d\xcd\xb4$\xea\xa2u\xe5\xacd\x84\xb35\x05MZ\x88\x08t\xc6\x06XCh\x98paW$\xa2V\x1b\xa3n5]\xedv\xdc\xb1\xadn;\xdd\xb4\x9b\xec\xfb\x1d\x9d\x9d\xb9\xd9\xec\xecN\xcf\x8br\xfd\xcb\xf3&lt;\xdf\xfb\xbd\xe7\xf0}\xb1\xe8\xe2b(\xb4h[\x0c\r/Y`\x98\x87}\xfa$\xb7X\xbc\xc2\x1d\x9c\xc0Ub$\x17&lt;\x02]\xbe\x1b\x03\xa9\xd6\x1b\x18\x922v\x08\xef9G\x94W\x9a\x9a.\xdbl\xc1\xe1Xv1\x04z-\xa6\xeb\x1aa\x9a7\x18\xe6\xe6\xfc\xaf9Tk\xdfm\x86\xc2\xd5\xea\xee\xee\xce\xcar\x89\xe4\xc1B"\xe1&amp;I\xf7\xfc\x82P~\x0f\xd5\x9f\x1f\xdc}y\xfe\xc9\'\xf1\xf8e\xfb|\x02T\x8bF\x1d\x8d\x8du\xf0\xf4c\x98v\x1c\xe2\x12\xeb\xb7\x0cE%\xd0tS\xde\t\x83=A\xe0\xa4\x95\x86)L2\xe5\x1c\xc9,\xdc{\n\xf5\xe2\xe5\x93\x93\x7f\xf2\xdcU\xcd\'f\x931\x9b\xa3\xb6\xbf\x0e\xaa\xcc1w\x98C*\xde\xf3\r\x8ar\x03\x16L]j\xf5\xec\xbc\x9b0Q\x84\xdd\x8e9GPe2\x19e&amp;#\xbc\xf7"\x9d^\xc2)`N\x0e\x87kA\xad\xfe\xda\xb9\xf8\xaa\x80\xc7e\xb8\xbeu\xe3\xd0ReR\x89\x84 \x080\x10\xda\xfe\x82\xce\xc8Rm\xb1d\x0b\x88.c\xbdz\x934Q\xf3\xe9\xe9\xb9\xb9\xda\xbap\x9d#\xf8\x98K\xac}\xbc\xbfhi\x9aP\xa9\xa5R;\xae\xa2\xac\xe8\xb4\x1dn4\x8e\x18\x8d[\xc6-\xf4\xf7fkk+\x93\xd9\xda\x1a\t\xd4\x8c\xd5\xb4a6\xc74\x94\x03\xb0\xda9\xbd[\xc0\xfb\xbd\x97\xa4\tBf\x97\xc8T:\xca\xdaV\x83\xde\x80_\x1d\x1b{\xb3[[0@\xbcx\xf6\xec\xcb&amp;\xcb\x15aGM=\xb6\x94\x9ev8&lt;\x9e:\xff\xd7\x1c_\x11\x11\xfc\x8da`v\xb6\xcbTj\xb3\xa9\xbef\xac\xa5\xa6\xe5\xcdX\xcd\xd6H\xe6\xe9n\xde_&gt;;\xff\xe4\xfc\x93i__I\xa7\xd3\xa8\x93,\x87\xc3\x9e\xb8\xcf\x11|\xcd\xf1E\x8c}\xdb\rZ\x92 \xec2\xb5\xca\xac\xabG\x07\x03\x03l\xda\x9f\xbe\xd8\xab\x97\xe8,W\xfft\xd8\xe2Z"t2[&lt;\x1c\x8e;\x82\xfew\xb8\xc6z\xed\xd5\x92n"\x01r\x11:c[\xc0\xe9T)1\x14\xf2]\xb9\x80\xee\xe5\xf9\x1b\xa3ap.n\x9b\xc5gmiO|8\x9d\x9a&gt;\xbc\x8f\xe3z\xe4\x8d4h\t&lt;\x91P\x13\x01\xa3\xd1\xacP\xca\x85\x18\x80}7\xf2\x1dT&amp;\xf3\xcf\x7f\\)i\x1a\x8d/\xa7\xe3\xf1`,\x91XL\xc7\xd3\xfe\xe0\xce\xc9|\xae\xb1\x06\x93\rz=\x0e[c\x82\xe8@g\x03\xe5r\x95\n\xc3\x9c\xba\x91\xbdZP\xdb\x97Z\x97[\x97\x86m\xc3\xa1X6\x9a\x8e\xfbwR\x9e\xeaB\x8e\xa9x\x831\xad^KS\x14\x9e\xa0\xccmF\xc0\x12b\x98\x0e\x16\xa5\xf5\xda\xcd\x9b\x1f\\\xbd\xdaRO\xa9\x97.\xb7./\x01U(\x9b\x0c\xf9\xfd\xc1\xd0N\xd9I\xceM\xcc\x8f\x9a\xb4z\r\xaer\xd3n\xdcj\xc5UB\xa1\x193\x9b;\xea\xeb[\xae\xfe\x0e&gt;5&amp;\x95\xbc|\xe9n\xab\xcd\xe6O\xa5\x92\x1b!\x7f(\x98\xf2\x18\xaa\xb9\xc6\xe2\xe5\xdb(\x06\xe4"L\xcc:M\x9ah\xca\x8caf\x9dN\xd7\x81~\x82\x1a\x1bkii\xd3)\xc4==K6[hb";\x91\n\x86B\xfe9\xc3)\xaeo\x90\t\x0e\x05\tB\xabe\x18\x1cv\x1e\x12\x86?\x13n\x06\xa6@G\x1b\xe8\xd5\x82~\x952\xdb%=\xd1X4\x14\x9a\x00\x0f\x17\x17\x17S\x8e2\xc3E\x1e\xe7X\xc3j\xdc\xa4G\x8b\xd1D2dU\x15e\xea\x08\x04:\x02m0\x9dZ\xdb\xda\xac&amp;bjm-\x16\x8b\xd9\x82\x10*\xf8\xf8\x83\xdb\xd3e\x86\xcf\xb8\x8e\x16\xaf\xd0#S\xe1$\x03\xcd\x8b\xb22U\x9a*\x922Q:\x1c\xb6G\n_\x98\x9f\x9aZCg$\xb2\xc9\xe8\xb0\x7fg\x07lLM\xa4\x1c0\xa0\xfe\x95s\xac\x02\x87L\xa52\x91Z=\xe3\xa65\x1a\xed5\x92\xa2\xddV\xf8\xc2\xe7\x01h-\x16]\x8b\xda\xa2\xc9\xe4\xdd`\xd0\x1f\n\x01T6\xdd_W[\xfd\xd91\xae\xb1\x04sb5\xcc\x0eUz-C\xc3\x92\xd4\x92\x8c\x951\xb9\xdd\xee\xf5\xf95(Pk-\x14\xccf\x91\x83)\xa4\xd5r&lt;\x8c^\xe3l\n8\xc7\x02\xb5\xcc` l\xd9Z\xcd\x19\r\xa9\x05?i\xf7&lt;\x8d\xafM\x81\x89\xc0\x15\x0cfS\xa9X(819\x99Z\x1e\r\xd7\xd5\x1a\xfe0\xf7\xf8=nC/8\xec\x91\xa8\xd5\x18\x04\n\x86@M\xc3\x19\x86\xd12\xa4\x97\x0607\x03p\xb8{&gt;\xb9\x96L&amp;S`\xe0\xc4d\xaau\xd9\xe7\xa8\xab-;5\xbd\xfa\x0b\x8e\xe5z\x14\x94\xc8\xd4\xe6\x00e\xc2\xdd\xe8.u\x04z\x05\xa3\xd50\t\x9a\xac\xa2h\x9a\x84\xda\x98Hn@\xc7J}\x9bu-\xfb\xc20\xcb\x1bN\xcd\xad\x1e\xe4\x16\xeb\xd8\xf1\xa8\xc4.\x13\x9a\xa1\'\xe04\xc9x\xf5\xda\x06\xaf\xd7\xadm\xc8\xae3U$MWYiz}#\xb9\xb1\x11\xfa\xe6\xa1?\r\x16\xf67B\xe2/\x02V\x01\x97.\x16l\xfe&amp;)\x11\x8b\xe5\nLg\x0c`V\xe8\xabz}C\xc4\xab\xd5?\xf4z\xa1\xbdZ\xadU\xcc\xfa\xfa\xc3\xc9\x87\x1b\xdfL\xda|q\x8b%\xeck\x04\x0f\x01\xeb\xc08\x87r\t\xf2r\xf6\x87z$2\xb9\xcai\x86-\xc7\xac\xa3\xc0\xc9\x08\x8c\x14\x9aH$\xc2\xd0zM\x03\xe3\xf5F\xbc\x93_=\x9cH[F]\xa3\xe1p\x7f?,\xc4\x8b\xfe\xd5\x0b\xe3\x05\xdca\x1d\xc8\xc99\xb2-\xe9\x91\x881L\x859\x9dN34RR{\xe6\xcc\x99H\xe4s\xf8\xd7\x9f\xd174D"\x9f~\xe5\xb5\xc5}\xe1\xb8k\xd4\x17\x0e7\x96UW\x97-&gt;\xff\x15\x7f\x9c3\x17\x0b\x80*\xe7\xf6,`\xa1&amp;aF{4f\x0e\xb85\xd0\'&gt;\xf8\xf8\xfd\xcf\xaf_\xff\xf8\xfd\xeb\x9fF\xf4\xd7f[\x97G}\x96\xd1Q\x0b\x8a\x96\xc1P\xed\xf1\xb4\x17\xf19rQp\xf8\xbd\x15\x84u&lt;\xd6\x03\\0\xfa\xe9\x9c0\xfea\x18\x160Z\xad\x1a\xf6Z&lt;jc4a/\x1fpY,\x9fX,\x08\x0b\xbaVuu\xf0\xf1\xc1\x13\xfcq.\xe4\x12\x1c\x12\xadl\xe6\xa0:\xb2-\xeb\x91H\x84J\x05\x86)\x95J\x0c\xc2\x0f[\xb5\xb1\r\xd8\x8c\x1dfL(\x14K\xbb\x97\x00\x0b\xa9u\x03\x05\xdep\xca\xe3\xdf\xbc\x00T\xe3o\xfd\t\x96\x97_ZQQ\xb1\x8b\x95s&lt;\xd9\xd3\xd3#\x96\xc3jT(\x95\n\xf8F\xdd\x02\x9d;\xd0)\xba\xbb\xbb;\xbb\xa5\x95\x95.\x0b\x98\x08l\x16\xe8\xa5\x86\xea\xb5\xd5\xbc"&gt;\x7f\x9c\xcfo~{\xbd\x9e\'(xuV\x04P9+\xc5,\xd5\xfe\xe2\x1d\x19\xb2Q,\x17*X.\x05\n?L\x82NE\xb7T*\xed\x94v\x0e\x0c\xa0\xbbZ\xa3\xe8\x801`\x95\xd9\xfc+\x17N\xf0\xa1\xc6/\xf56\x1f{\x1b\x92\xf1\x04\x87\xf3ss\x91R]]\x15\xed\xbbX9Gn\'\xd01\r\xe0\x020\xa1\\\xa8D5\xe3t\xce\xc8\xa5\xe5\x95\x95\x95\xe8\xc5*\x10\xb9\\\xae\x1b&gt;\x88VY:\xfa\xfc`\x11\x9f\xad\xa2\xa1\xde[\x97\xfe\xf8s\x1b\xab\xe0\xddADT\n\xb5\x02j\xe5\xed\xa9\xb5\xff\x8b\xacJ&amp;\x91H\xf6\xb0\xe4\xca\x19%\xa8\x06t\xe2\xf2\x81\x92\x81\x81\xca\xca\x12\xb0\xcf\xd5\xd7\x07\x92\x01\x96cju\xe5\xc3]\xb1\xf8\xfc[P\xbd\xcd\x97~F\x0b\x13\x14\xe6\x0f\xe6\xe6\x8aJA\xa7.@\x03&lt;\x16k?`\xe5|\x8d\xab\xc4\xbb\\r\xa1P\x0e6*\xc0K\x08{\xf9\x00P\x81Z\xa0T_S\x93\x0b-\xc4~\xbb\x1f\xc4\xfa\x1e\xab\x19\xa8\x86\x86\x00\xac\xb0\xe0\xffj\x17\x05\x87\x06sKE@\x85\xb8\xee#\xb2\xae\x95\xbcs9\xdfsmw\xc8%\xdd\x12\x96J!d\xb1P\t\xd9w\x97R\xe8\x0f.W\t&lt;\xc4Z|\x8d\xfd\x0f\xa2\xaf\xdb\xd9d\xc1J&lt;\xc1?\xcdR\xf5\xf6\x8aD\xe0\xe5\xff\x1c\xa8w\x06A\xa8\xdc\xd2R\xc0*\x05\x9d\xee\xdfG`\xe7\xf2\xda\x8f\x1c\xd9\xc5\xda\x7f\xd4\xef\xbc\'\xdeS\x0b\xc5K\xa1\x9c\x99q\xce@\xb8 \xf0\x9d`b\xdfG\x03%\xa0\x96/l\x9b\x7f\xbcy\x00\x895\xfe\x03\xd6\x1d \xbbu\xfa4x\xc9\xfb\xe9=\xf3U&gt;2\x0f\x15\xab\x16\xe2\xea\xea\x02\xb0\xfb\x15\x07Y,$\x16\x80\xed`r6[\xc8&lt;\xf4\xcdf^!\x86\x0e!\xad\xecs\xf5\x81\x9b\x08ky\xea\xef\x9by\x1f\xfe\x18k\xe8\xce\x9d;,\xd5\xe9\xe6\xe6\x9f\xea%\xaf\xf0ln\xee#\x96\x89EB\x8a\xfd\x9b+\'/\xaf\xb8\x18\xc9\xb5\xcb\xe5\xd7\xc9\xc42\x99\x90\xc5\x12\xb2r\xcd@\xf4\xe5\xe8\xfdeI\xd3@%\xfa\x11mtY\xedy\xde~a7Y\x10\xad"\xfe\x8f\xa8@8\x04\xf6\xea\x98\xe0\xbfy\xf7\xee`\xaeH\xc4"\xb1b\x95\x96\x8aD\x10\xad\n\xe4#pu\xe5\xfd\xf2\xe8\xb9=.\xa8b?&amp;\x93\xc9eB\xb5\x9a\xcd\x17\x8b5\xa3@=^\x8aV\xe3\xc0GMM\xadf\xff\x17G\x0f\x80X\'\xf8\x88\xecD\x11\x7f\xa8\x0ba\xddBX\xb7\x9a\x9b{\x11\xd8\xd9K\xaf\x04\xff\x81G (\x00\xf3\x06\x07\x07\xcf\xfe\xc0%*\x1d\x1a\x1a\x12\xe5\x96\xeeq\xdd\xe9\x02\xac_\x9f;W\xbc\xdb#Pm\xff\xab-\xf3wm$\xbd\xc3\xb8\xa4f\x06\xcfx~,3\x0c3\x8d4+\x18q3\x8b\xce\xdch\x08hu\n\x06\xbb2*|\xc4.\xc4\xfd\x05*\xe4m\xc2\x84\xa9\x0e\x82u\x1b\xdc\x88e:7Nq\\\x13Pa\xc8\xfa@W\xd8M:\x15\xc7\xe6\xc29\x18|\xd8`X\xb3\xc5m\xaeXH\x93\xe7y_Y^\x92|\xbd\xd8\x92\xe5\x91&gt;z\x9e\xe7}\xde\xd7\xeb\x8d\xed\r\xe8\xb5\xfd\x94`\x9f\x0b\xae\xa7\xe2/\xec\x08&gt;\xb8~\xff\xcf\xed\xbf\xfc\xfb\xde\x1bu\x89%Z\xab\xfb\x04\xab\xe7A\xac],\xca#\xbe\xdax&lt;\xfe\xf0\xff\xbc\xac\xd7I\x84\x94#S{\xd2\xc1\x1d\xdc\xd8\xc1\x1b\xdb\x11rqN\x0f\xab\x85\r\xb9\xe2x\xa5W\xed\xfa\x87\xed\r\x06\x0c%\xf1T\x94*\xd2\xff\x92\x7fa\xc7|\xf9\xe5?~\xfc\xe9\xae\xea\x8e(\x96\xec\x07\xdc"\xd6\xd17K\x0f\x8f\x0e\xe0\xc6\xfa\xc1\xee\xee\x18^6\xff\x07\xac\xb5\xbe\'i\xd6\x01\x06\xc1\xd6\xf7\x8ew\xc8urxx\x8a\x0bO\xf6\x0fO\xf7O\xf7\x8bb\xa8\xd9~\x920_K\xacx\xfazc\xb9\x1eeC\x00\x8brq\x07\xfa\xf4\xd9\xab\xef\xafk\x85\xb0\x90X8A\x0c\xba]h~\xbaL\xd67\x07B\xac\x03b\xedq\xfe\xdbK\xac\xd8G0&lt;\xce;\x8c{\x8bIx\x93e\x88\xd5N\xcbE=h\xb6\xe9\xb7\x93\x95\\\xd5Z&lt;\xff+j\x95\xbb\xd0g\xd2E\x80}\xc2\xbf\xfd\x7f\xfa\xf2\xb3W?\\\x97W^\xa7+\xc5\xeauz\xbdAo\xa4i\xda\xa3\x83\xa0j\x81j&lt;\xe6k\xef\x8d\xcf\xce\xb0.?\xaa\x8c\x16\xdf\xc2\x01\x9a\x93P\xc7\xe0:\xa0s\xb8\xd7:}sX\xb8\xfa\xcd\xfd\x95\xe7y\xae\x1b\xfb\xb6\xdd\xf6\x93\xfe\xb2%D\xb5f\x7f~\xc6\xba\xe7\xbe\xfd\xf9\x8bW/\xa8\x17\x06\xf7^\xbd\xbe.\x87\xee*X\xc0\x1a\x0c\x9eX\x96\xa6\r\xbag\x0fTG\xa0\xe20\xcb\xa0:\x1b#\xfe\x1f\xc0&amp;e\xdb;\x81\x1e\xfb77;\'- \xc1\xbc\x9d\xd6\xcdU\xf5p\xbf\x85\x07\x02\xdd\xf3t\xdds\x81U\xf4cM\xb3\xda\x96?\\\xa5\x0bd\xfd_\xff\xf4\xec%\xb1~\xb3\xf5\\rq]&gt;\xff\xe2\xe7\xeb\xf2^\x06KRu\xba\xf6\xa0\x1b\xfb\x96\x85/\xbd1\xb1NZ-\xae\xc4#\xae\xb2\xbd\xf1\x98T{R5\xb9\x99\xaf\xaf\x83\xabX[\x0bD\xb7\x1f\x1f\xd7\xd70\xf5\xe3\x02y\xbf\xa9\x0b\xa8\x82X&gt;\\\x04\x97e\xb5)X\xed1`_\xe1T\xf8\xc9\xc6\xf6\x16\xb8^\xbc\xd8\xda\xda\xde\xc6\xc9\xf5\xab\xbb\xdaUa\xd3B\xb1\x06A5\xb0;Z\xec\xb7-s\xd4\xe9}7\xb2\x11\xf7\x13b\xb1\x83\x04\x96\xf0R@q\xb04\x0fZ\x07\xa7o\n\x01#\xc7\x00UP\x17\xa3K\xad\xa0YQ\xb8}\x9fr\x99\xe0z\x14\x0c\x92\x95\x10\xec\xeb\xaf\xb7\xa9\xd6\x17\x82k\xeb\xf9\xb7w\xbf\\\xb9\xfah\xa5\xd5`\xd0\xb1\xed\xae\xdf\xf7\xdbm\xd3\xc6y\xa23\xd2U\x95F\xa8:;\xa0^\x0f\x0c\xc3\x08\x8e\xbd\xd6\xee\xd9\xae\xe4\xfaP99\xdc?)\n/\x14H\xc1\x12l\x85\x85\xab]\xa1X\xe1\xfaU[3-\x13z\xf9\x1f\xf5*\x9a\xf5\xee\xa7\x8d\x8d\xedM\xfe\xa7 \xb0\xf0;\xd1\xb7\xd9}\xe1jK\x0b{\xbd.\xb0\x06\x08U\xe2\x03\xcb\xd2\x06\xbd\'#\x95X\xaa\xe2`\x14\'\xc0\x18a\xda\x88\xc2\x06\xd6%\xc0\xa8\x1d{\xcb0\xbc"x\x94k-\x08\xd6\xf0]\xb0y\x9e\xca\x01\x16\xa7\n\xb9@E.\x16~\xcc\xaa\xa8\xc6q?\xb9\xff\xf5\xe7\xbfommnn\xfe\xee\xb7\x9b?~\xff~Z\xd5F\xf6H\xae\xc2%\x95m\x0f:\x80\xa2\x8bv\xb7\xd7\xd19\xaa\xaa\x88\t\x00f\x80\xca1\x1ac.S\x1a\xbaW\t\xd7\x9a\xcd\xb5\xe0Jm&gt;RQ4\xbc\x85z\xfdFW\x94\xba\xc0\xe2ZL\xaa\x9a\x90\xab\x8d\xe7\'\x18:,\xc6\xa7\xe10)\xca\xeb\xbb\xbb\xeb\xeb\xbb\xbf\xfd\xe1\x8f\xaf\xcf\xf3Z\xa2\xd9\x1d\xb4\xba\x98N\x87P\xc4\x12\x17\x02\xab\xd3\x85\x89\xa4Zr\xd5ib\xdap\x02\xa8u$\xa8\x88\xd5$O\xe8\x16\xcd\x8f=J[n\x00\x00\x04iIDAT\xb9\x0cZ\x19(\x9e\xaa,\xd5\xe2\x87[\xfa\xb6i\xd2E\xcb\xe7$\xfda\x82\xfd\xa8_\xcd\xa7Y\xad\x96e\xf9\xe4_\xaf\xdfOp{hb\xc1\xe1_\x07L\xd4\n`\xb8c\x9b\xa0\xb2Lm\xd0\x11X\x82\x8bdu\x05X\x8d\xd41\xd6\x1a\xee\xe9\xc9\xe9\xe1\t\x0b\xb6\x926\xc8\xa3\\\x19\xcd\xe6\x92\x0c\xf9\xe3\'\xc8\xa5\x0b,d\xcb\x93\xd5U\xb3\x11/S\xd8H\xc1\xa8X\x9cM.f`\xc9\xa6yVN\xe7\xf3\x9c\x8c\xfd\xa4m\x0f\xc4\x87M$|\xe9&lt;\xb1m\xca\x05\xac\x91\xc0R\x85\x89B\xb0\x80X\xf00l\x8c\x1c&amp;\x1a[\xf3^\xa5\x91\x12\xc6(\xea\xa4\xc2\xcd04\xb80 V\xa0\xeaR,\x9dk\x11X\xfeT\xc3\x93\x0b#!\x16\x13\x16O\x17\xb7\x8b\xd9d\x0e\x962\xe9S\xb0\xd9\xc5\x050\xf32\x1e&amp;()\x99+L\xf7;\xcb\x96\xc1\x84\x8b\\\x89K\x17U\xe9\xa2A\x0f\x9b\xe9(%C#\xa8\x1bP\xab\x11"_\xae\xda\x14r\x85k!\x12H\xb9\x80%\xde\x0f\xb9d\xe8\xdbYB\xb9\xf8\xf4"^\xf1\xf4\xe2\xed\xdb\xc5\xc5l6\xc98\xf9t\x9a\xcf\'\x8b\xdb\xcbw\xef\xde\x02v\x0e\xd48\xf1-\x9b?nw\xb0\xa7\xf2B\x93r\x8dT\xf5\xc1Bx\xa88\xf5\xa8\xe1\x18@S\x9aLz\xa8\x1ai%\x02\x16(&lt;\xaf)\xe5j\x86\x86!\xd5r\x96X\xba.\xc5r\xcdj\xc6wN\x1fQ\x12q\xbe\xb8|w{~1\x99L\x84y\xf9b\x01\xa5\x16\xe7\xb7\x97\xcb\xb9]\x007\']6\xad\xfaC\x13\x0b\xe6\xc1\xc5\x07*\x19\xfa\xa0\x1e\xa5\n\xb0t\x87\x02\xa5\\\x98\x15\'m\xa4\x86\x11*\xdeR\xadG\x0f\x15]u\xc8\xa5\x0b.`Y\xc9\xd4\xb5EF\xfca5\xbf}{y{\xf9^X\x98M~\xc9\'\xd3\xd9\xf9\x02\x8c\x00\x03\xdf\xe2\xfc\x1c\xf7rl\xe7\x8b\xf3I\x86\xc0\x95\tvD\xfa/\xc3\xa5&gt;\xeaUGu\x19\x91\x12\x86\r7B{6S\xd5\x88\xa2\x8a\x0e\xb9\xc0\x17x)\xb1\xc20\x8c\x0c\x03\x0f\xcbh\xa1\xee&gt;R\x0b.\xd6\xd8\x0cUdhrq{{\x8e\x17_0X\xf7\xd3j\x9e\x979n\xc1\xc5\x99\x18\x11\xb1\xac\x9fLg\x17\x13.\x87Z\xd2&amp;\x16\xd42\xf5\x07,ZA\x13\xebND\xac\xc8\x8d\x8c\xb0\xd9\x8c\xd4\x08X\xae\xd3h\x18\x02\xab\xb1\xc2\nB\xe1!\xb0\xa4\x8b\x8c\xbc\xe6\x9an;F\x84\xe6\x8b\xcb\xcb\xf3Y&gt;\x9f1U\x17\x8cP-\x89\xcbj\x99eeY\x83_y&gt;\x9f\xcf\'\x9c\xbcL\xfcl2\x9b\xe3\xa2\xb2:l\x9bB-W[\xb9(\xeb\x14TN\xe4(4\x0c.5\x1b\x14#\xaa\x14:\\\x94X\rb\xa5\x11|D\xbe\xa8\xd3\x03\x96.\x0b\xc24\x93\x1a"\x84\xd0\xe4\xd58\x9bS\xa7)\x92S\xc68\x8e\xf5e\xe3\xa3\xf9\xcb\xb2\xcc\xe4\x94\xfd\xb6_\xe2\xc7P\x1f\xb58\x91X\xc8\x96p\x118\x0f\xd1\xaa#\xf2\x8e\x13\xa4\x9e\x8e\xf4\xa4\x8e\x1b\t,/J\x1b\x88\x93\x073S\x81\x95\xa6L\xbd\xc4rVK\x11\xcfi\x9a.t\x99,.\xe6\x89\x05\xc2\xb2\x14\x1bc\x1c\x0f\xb1\x0c4vF\x92\xc8\xf3X\xcc\xe9\xf7\x11\'\xab\x06k\x01\xc8*\xb3\xf8\x04\xa6\xc5\xed2\xea(\xcaJ,\xaa\x83x\xa5\xae\xc2\xb0\xbb*\xee\xa6\x95+\xe1\xa2a\xe8A\x03\\i\x04\xaa\x08rE\x0e.s\x84Z\xca\x8a\x8bh\xc3\xe9|\x1a\xfb&amp;0\x86}\xc4\xac\xaca\xf3\xd1L[P\xa35\xb0Y\xf6\xe5\x8e\x94\xf8\xec\xd4a\t\x03\xb9q\xfa,\x07r\x99\x1a\xce\xd2\x8eB\xbd\x1e\x04s"\xc4&gt;r\xc1\x16R\xac L+E\xa1\xb2"\x0c\xdd\x91T\x14\x8b\x9a9\x8a\xc4\xc2\xe5\xa4\xb2u\x8dckm\xa8\xe0\xe3\x80\x82JE\xcd\xd7PMI\xa2\xbb\xa6(M\xb0bE\x0c\xc9\x04*T\xd6\xc0\xb6p\x9f;U[\x88E,\x8dX\xdd\x11\x9ex\xe4,\x05\x93X\x1e%\xf3\x10x#\xeaU\xbc+OT\xc4GX\x98\xc8\x91X\xe2B\xa1\x96\xady\x02\xcb\xf2y\x10\xe0\rh\xd3\xaf\xd6\xfax\xcd\x91\xcd\x87\x06K\xae\xa1`\xf2\xc9\x8e\x13M;\xe1\xb9A\xf4\xbbt\xd1\xd5p\x14\xeb\xc2E`9+,EbEE\x84lG\x9d\x8a\xea\x17\x113\xaf*\xc8\xbc\xf00\x15b-G^G0\x8a\x058@\xe14\'\xb0\xd8\xa91\x0ew\xfe@ba\xa31\xdbI\xb2\xa4\xf2-~\xcbF\xe6h\x9f\xe0\xc2\x08\xcdqB\xec8\xabw\xbd\xc4r&lt;\xf4\x83\xea\xe2\xd5\xa3\xae\xf6\x1f\x90!\xcc\rX\xe3\xf7\xb9\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9dzTXtRaw profile type xmp\x00\x00H\x89\xadVK\xb2\x9c0\x0c\xdc\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3{UY\xe6\xf8i\x19\x98a\x06\xf3IU\x86\xc2\xc0X\x9fV\xbbe\xa0??\xbf\xe9\x17~\x91S \x19\xad\x93\xc1:\x9d,\xe8\xa4\xd9\x92F\x0e\xfe\xac\xa3\x16\x13\x9f\x93\x89M\xa3&amp;\x9d\x955\xcb\xb0\xfc\xff\xb2\x9e\xd9\xa4P\x188|\x1e\x08\xcdpR\x192\xa7\x94\xf4+\xec2\xe7\xa1;K8\x82\x0c\x085\x93\xd5\x1f\x17\x83\x15\x17\x9dah&lt;K\x94\xde\x0f\xdc\x05a\x8c\x8cqZ\x82\xe0*\xd6#,\xd0X\xc7\x93\'`!\x87\x15\x86+\\\x00\x95MT\xf0\xdc[\x80{\x8f\x12\x0bp\xae\xf3(\x9a\x15\x88P\xa7\x03e;\x06\xdb\x97\x04\'9\x16\x84\xc0\x19\x01G.\xb4\x15\xe3\x86\x183\x1c\xb3\xd3\xe8\xd0\x01\x19Er\x91\x95\xd0\x16\xee\x9a`\xb0D\x80\x9b\xdc\xb9m\xf6*/\xea\x08\xe4\x176\x04\xd0\xa3\xf6[\x19\xf5)jQ\xf32*\x95`H\x15\xb4f\x0f\xe5\xb8R\xae6\\k\x89p1\x9c\x82\xd28\xb81F\xc5\x14\xb4\x82\x82\x02O\xc8\xc52\xf2\xfc\xa2\x14\xe9\xda\x88\x16\x1b\xba\x03\xbe\xb0\xe7,\\\x93@\xef\x9c\xede~*\x0e\xbaV\xc7Sq\xa4HU\x15\x08\xa6|TI\xd5l\x01\xd1/\x1b\x0f\xbc\xa6,*\xb8N\xb0B\x17\x1a\x94\xbd(%\x9c+%\xed\x02U&gt;\xe1v\xb4\xa4\x8f&amp;\x15\xd4\x1b\xaf\x15\xb5\x8ae}\xc2\x8e\x11Q7\xfc(\'\x03GX\x0b\x14\x96\xb9\x127W\xd9c\xf2!F_\x9eL\xce\x00$\x87\xc5\x87n\\;\x89\'\\}\x8c8\xb0\xfc-\xb7\xb7\xd7\x96\x88.2e\x03\xf5\xa9\xafI\x00\x14\xff%$\x8a\xd2\xa1+\'\xe9&lt;Q\xbd\xf3"; B\x1b\xf8\xbe\xc7\x8a\x1dG\xa4\xe6\t\x92a\x94\xe0\x92!FSn \xdb\xa5qTtS?p\xac\x98\x90\xaa\x9e\x8a\xb1\x07\x9a\x84\xd3p\x97\x81mQ\xf6\x99\xeb=\xcd\xd9;\x13\x98\xb5\xcb\x89\xd65+\xd2\x80\xbf7\xdc\xec\xce\xda\x96\x9e\xf5\xf6\x9d\xca\xb0\xf9?\xd3\xedg\xc8V{\xd3\xf3\xfe\xfeO\x9b\xbf\x85\xf6\xfblkl\xda\xde\x9f\xefn^\\\xd6f\x96\xf3f^C\x83\x0e\x07C\xda\xf9\xde\x8b\x9dx\xd0\xd9\xf7^\xdfzSo\x83\xe1\xb9\xf2\xf2a\xbeY\x1f\x03\xd3\x1d\x89O9\xa4;\x12\x9frH\xcbw\xc89\x89\r\x0e;\xf4~\xf8\xde\x10\xa9\x01y\t\xbd\xdf0P\xbc\xab\x1c\xc7\x086\xc5\xdf|\x86w]\xa5e\xb5\xa63\xf3\x7f\x95$mt~\xbb\xdd\xb4K\xfdr\xda\xfb\xd1\x87\xd9\xe1\xdb\r_b\x7f\x01\xfc\xbf;\x9e\x01\xb7\xd3Q\x00\x00l\x83IDATx\xda\xec\xfdg\xb0%y\x9a\xde\x87\xfd\xfe63\x8f\xbb\xb6LW\xb5\x19?=~=v\x17+\xec.,A\n (\xc2H\x00!\x11\x90\x14\nE@\x8cP\xf0\x03\x89\x08\x05\x03\x9f()B\xa2"\x14\x12\x82\x00IA\x1f(\x10\x96\x82!\x16f\r\x80\xc5\xdaYofvfvf\xdaw\xd9\xeb\x8eK\xf3w\xfa\xf0\xe6\xb9u\xbb\xb6\xba\xb1\x10\x16[\xd5\x0bdDu\xdd\xbeu\xef9y2\xdf|\xed\xf3&gt;\x8f*\xa5\x14\xfe5?J)(\xa5.\xbf~\xf0\xe0\x01?\xfd\xd3?\xcd\xcb/\xbf\xcc\x07?\xf8A\x80\xcb\x7f\xff7\xc7\xaf\xef\xd0O\xfb\x04\x9e\xe6QJ\xe1\xec\xe4\x8c\xd7^}\x8d\x94\x12\xa5\x14^}\xf5U\xfe\xf4\x9f\xfa\xd3\xfc/\xfe\xc3?\xc5\xbf\xfb\xef\xfe!\xfe\xca\x7f\xf7\xdf1\x0c\x03\xa5\x94\xcb?\xbb\xdf}\xafg\xf2_\xf7\xe7\xd5&gt;\xed\x13\xf8Wu\xecn\xacR\xea\xd7\xdc\xe4\x9d\x87*\xa5\xd0\xf5\x1d\xf7\xee\xddc\xbb\xdd2\x9bM\xf9+\x7f\xf9/\xf3\x83?\xf4\x83\x80\xe6\xab\xab\x15\xff\xd9\xff\xe1\xcf\xf2\xab_\xfe2\xdf\xf3\xbd\xdf\xc3\xcb\x9f\xfc\x14\xfb{\xfb\xf4}\x07\x806\x86\x9c3]\xdb\x01\x05_U\xcc\xe7s\x94R\xe4\x9c\xd1Z_\xbe\xcf\xe3\x1e\xef\xea9\xfdV\xf4\x86\xea\xb7b(,\xa5\xb0Z\xae\xd0ZQ\xd55\xeb\xf5\x1ac\x0c\n\xc5\xe9\xe9\t(E\xd7u\xbc\xfe\xeak\xfc\xe4\xe7?\xcf\xfd\xfb\xf7\xf9\xca\xaf\xfc\n]\xbb\xe1k\xaf|\x9d;\xf7O\x98\xcd\x17\xa4\xd0SW\x96\xa6\xaa\x99L\xa6|\xe8\xa3\x1f\xe3\x1b&gt;\xf7\r|\xe9W\xbe@\xc9\x85z2\xe1\x13\x9f\xfc\x04\xd7\x8fo\xf0S\x9f\xff\tNO\x1f\xf2\xbf\xfe\xdf\xfco9::\xe6\xe1\xc3\x07\xdc\xbc\xf9\x1c\x87G\x878\xe7\x99\xcd\xa6X\xe7\x98N\xa7\x94R\xb8\x7f\xef&gt;\x17\xcb\x0bn\xde\xbc\xc9b\xb1\x90\x9b\xf1[\xc8\xc0~K\x19V)\x85\xf3\xb33\xbe\xf0\x85/\xf0}\xff\xc3\xff\xc0f\xb3\xe6\xb3\x9f\xfd\x1c!\x04B\x08&lt;|\xf8\x90\x1f\xfb\xd1\x1f\xa6\x1f\x06b\x08\x9c\x9e\x9e\x11S\xc2\xfb\x8an\xbb\xa1\x1f:\xb6m\x8f\xaf&amp;|\xc7o\xffN^\xfd\xfa\xd7\xb8{\xf7mT)\x0cCb\xddu\x94\x9c\x99\xcf&amp;\xcc\xe7\x0b\xda\xcd\x06_9\x9e\xbby\x9b;w\xef\xb0^]ppx\x84V\x06\xe7,\xf3\xc5\x82\xc5b\xc1\xb5k\xd7x\xf1\xc5\x97888\xe4\xbb\xbf\xe7\xbb\xb9\xb88\xe7/\xfd\xa5\xbf\xc4k\xaf\xbf\xce\xcb\x9f\xf8$\xff\xf3?\xf9\'\xf9\x8e\xef\xf8\x0e\x9a\xc9\xe4i_\xc2\xdf\xb0\xe3\xb7\x8ca\x95RX\xafV\xfc\xd7\xff\xd5\x7fES\xd7\x9c&lt;|\xc0\xff\xf3\xff\xf1\x7fG[\xcb\xc1\xfe\x01%gNNO\xd8\xb6-a\x88\x18kij\xcf\xa4i\xc8%\x93RFiCJ\x99\x83\xc3\x03\x8e\x8f\x8f9=9a\xb9\xbc \x84\x88\xb1\x8ev\xbba\xb5i\xc9\xa5\xb0\xb7\x98\xb1\x98M\xd9n7TU\x8dq\x9e\xb3\x93\x13\xac\xd1\x0cC\xa0\xaa*b\xca\x18\xad\xa9\xeb\x8a\xba\xa9\xd9n\xb6\xcc\xe7s\xb4Vl\xdb\x8e\xd9|\xc1|\xbe\xe0\xee\xbd\xbb\xfc\'\xff\xc9\x7f\xca\x7f\xf8\xa7\xfe\x14u]\xff\x96\xf0\\\xbf%r\xacR\n]\xdb\xb2^\xadY,\xe6\xfc\xdd\xbf\xf3w\xd0\n\xaa\xbaF\x81x\xa2\xed\x96m\xdb2\x0c\x01c,C\x088\xab\xb9X-9&lt;&lt;db\x1dgg\xe7|\xe37}#\xab\xd5\x8a\x07\xf7\xee\x10BB+\xc5|&gt;\xa7\x94\x82\xb7\x1a\xeb&lt;g\x17K\xba\xaecZWh\xa59\xbev\x9d\xedfK]UP2\xcd\xa2f:\x9f\xb3\xdd\xb4\xe4\x9c)\xa5\xb0\\\xae\xd0J\xb1\xddn1\xc6P\xd5\x136\xdb\r!\x04\x8c\xd1\xfc\xa5\xbf\xf4\xdf\xf0;\x7f\xd7\xef\xe2c\x1f\xfb\xd8\xd3\xbe\x9c\xbf!\xc7\xfb\xde\xb0J)\xf4]\xc7W\x7f\xf5\xab\x18c8;;\xe3\xe7\x7f\xeeg)%\xb3\x98\xcf\xe9C\xe0\xed\xbb\xf7\x89!`\x94\xc2[\x8b\xd6\no\x1d1f2\x85\x9231E\x9e\x7f\xfe6\xa7\'\x0f\xb9w\xef&gt;\x94B\xce\x99\xe5z\xc3\xfe^!\xa5\x84\xf7\x9e\xe3\xc3\x03&amp;\x93\x86\xf3\xb33\x86a\x10\x0f\xa3\r9E\xc9\x9f(\xc4\x10X\xafVT\xbeBiO\x08\x81\xc3\xa3#J\xce\xac\xd7+\x86\xa1g\xd3\xf68gi7[\xae\xdf\xb8NN\x997_\x7f\x9d\x17_|\x91\xa6i\x9e\xf6e\xfd\x97&gt;\xde\xf7\x86\xd5w=_\xfb\xda\xd7y\xfd\xb5\xd7\xf9\xe5/\xfc2\x7f\xed\xaf\xffU\xee\x9f\x9cP\n&lt;&lt;\xbb\xc0\x19MN\x91ySQ\xd5\x15\xdez\xba\xbe#\xc4\x80\xf7\x96\xe9t\xc6\xcd[\xcf\x11\xc3\xc0\xf2b\xc9\xd9\xf99]\xd7\xb3\xbf\xbf \x85\x84\x02V\xab5\xb3\xe9\x14\xa35\xb9\x14r\x0cL\x9aJ\x8c\xafd\xf6\xf6\x0e\xb8\x7f\xe7\x0e\xab\xd5\x12c\x0c{\x8b9\x877\xaeszr\x86\xa2\x10c\xe4\xee\x9d;@\x06e\xb8\xd8\xac\xa9\x9cc\x184\xa5\xc0j\xb9\xc2\x1fW\xfc\xe8\x8f\xfe\x187n&gt;\xc7\xc7&gt;\xf6Q|U=\xedK\xfb/u\xbc\xaf\r+\xe7\xccW\xbf\xfa\xab\xfc\x7f\xfe\xdb\xff\x96\x9f\xfd\xd9\x9f\xe1k_\xfd\x1agg\'\x94\x9cq\xce\x91R\x94P6i\xb8~\xed\x98\xaan\xe8\x87\x1e\xd6\x85\xc3\xc9\x01]7PU\r\xcb\x8b3\x96\xcb%m\xdb\x13b`ooNN\x91\x18#J\x15n\xdd\xb8\x86w\x9e\xe5f\xc3\xd0mQ\xc0\xcd\x9b7\x891q\xff\xe1)\xd3\xf9\x9c\x982)%r\xca,WKB\x08\xe2\xe5\xaa\x8a\xae\xeb\xd8n[\xea\xdac\xadB\x95B\x88\x11\xad\xa0\x14\xc5r\xb9\xa4\xaak\xfe\xd9\x0f\xff0\xeb\xcd\x86\xff\xe9\x1f\xfbc\xbc\xfc\x89\x97/\x93\xf9\xf7c\xce\xf5\xbeM\xdeK)\xb4\xdb-\x7f\xfd\xaf\xfdu\xfe\xaf\xff\xc5\xff\x85\xb3\xd3\x87\xb4\xeb5\xdah(\x85\x02\x18c8\xd8[0\x99\xce\x99\xcf\xe6\xf4]\xc7\xf9\xf9C\xfa&gt;2[,\xe8\xba\x8e\xf5z\xcd\x10\x021\x04\x941T\xdeq\xed\xf8\x88!D\xda\xed\x96ISQY\xcb\xd0\xf7\xac\xdb\x9e\x92\x0b]\x8c\xa0\x14\x9f\xf8\xc4\xa7\xd8lV4\xd3)w\xdf|\x8b\x93\xd3\x13J.(\x05\xa9(\xa6\x93\t)\x05\xb4\xb6\x14\n\x95\xf7h\xad\xe9\x87\x9e\xf5zKL\x89\x82\xc2;\xcb\xed[\xcf\xd1\xb5\x1d\x17\xab5/\xbc\xf8\x02\xff\xd6\xef\xff\xb7\xf9\xe3\x7f\xfc\x8f\xf3\xc9O~\x12\xe7\xdc\xfb\xce\xb8\xde\x97\x86UJ\xa1\xeb:~\xe9\x17~\x91\xff\xfc?\xff\xcf\xf9\xc2\x17\x7f\x99\x92#\xab\xf3s\x16{{\xa4\x18\xe8\xba\x16\xad4\xb7n\xde\xa4j\x1aR\xcc\xe4\x1cy\xf0\xf0\x01)f\xb4\xb5L\xa7\x13\xb6\x9b-\xf7\x1e\x9e\xe0\x9d\xc5zGSU\xec/\xe6\xcc\xa6S\xb6\x9b-G\x87\xfb\xb4\xdb\r)D\x94\xd6\x14\n\xdd\x109\xbb\xb8\xc0\xbb\n\xb4\xa2n\xa6\xc40\xa0\x95\xe4b\xe7\xcb\x15}H\x90\x01\x12\xfb\xfb\x87,\xf6\x17&lt;\xf7\xdc-\xea\xaa\xe1\xfe\xfd;\xbc\xf9\xc6\x9b\x9c\x9c\x9dS(\x84\x988\xdc\xdf\xc3\x18\x8b1\x86\xb6\x1b@\xc1\xf3\xb7o\xf3g\xff\xec\x9f\xe5\x0f\xfd{\xff\x1e\xde\xfb\xf7\x95q\xbd\xefBa)\x92\xb3\xbc\xf2\xb5\xaf\xf3_\xff7\xff5o\xbf\xf5&amp;\x8b\xd9\x94\xb7\xdfz\x8b\\\n\xb7\x9e\xbf\xcd\xfeb\x9f\xd7\xbe\xfe\x15\xdam\xcb\xd0\x07(\x85\xf5z\x83\xd6\x8a\x92!\xc5H\xd34\xd4\xde\x13\xfb\x01\xab\x15{\xb3\x19\xdaJ~\xb47\x9bR{O\xe3\x1d\xb3\xa6\xa1\x84\x81\xc9bA\x8c\x81\xed\xb6%\xea\xcc\xaci\xd0\xdaP55\xd3\xc5&gt;\x9b\xcd\x9a\xa1k9\xd8[\x10R\xc6\x87\xc0\xfd\x87\xe7X\x03\xfd0\xb0Z^\xe0\xad\xa5\xaaj\x9a\xc9\x84\xbai\x98\r\x81B\xe1b\xb9\xe6b\xb9\xc6;\xcbd\xd2p\xb07Gk\xcd\xe9\xc9C\xfe\xe6\xdf\xf8\x1b|\xe0\x03\x1f\xe0\x9b\xbe\xf9\x9bq\xce=\xed\xcb\xff\xeb&gt;\xcc\x9f\xfbs\x7f\xee\xcf=\xed\x93\xf8\xf5\x1e\xa5\x14\xda\xb6\xe5\x9f\xfe\xe3\x7f\xc2_\xf8/\xff&lt;?\xf8\x03\xff\x08\xad\xe0\xf6\xed\xdb,\x97\x17c+Aa\x8db\xb3Z\x91S`ROXm\xd6\xa4\x18\x08\xc3@S{\x9c5,fS&amp;\xd3)M]\x91\x86\x8e\xc5b\xca\xc1\xc1\x1e\x07\x8b\x05\x95\xb5\xe4Rp\xc60\xc4@\xc9\x89\x923\xdb\xf5\x86.%\xb6mGL\x11\xad5g\x17\xe7\\\\,\x99\xcf\xa6T\x95\xe7\xee\xdd\xfb\\\xac\xb7l6\x1bB\xca\x18\xadh\xdb\x8e\x10#\xddv\xcb\xbd\xfb\xf7X\x9e_\xb0\xddl\xa4\xa2\r\x81\x98\x121\xca\xeb\x95\x92\x99L\xa7(`\xb9Z\x91R\xe1\x17\x7f\xf1\xe7\xb9v|\xcc\xad\xdb\xcf\xcb\x04\xe1}\xe0\xb9\xdeW\xa1p\xbb\xdd\xf2s?\xf33\xfc\x17\xff\xc5\xff\x8d\x1f\xfc\x81\x7f\x88\xb5\x86\xda{\xb4R\\\xac\xd6\xa4\x94\xa5\xd2k\xaa\xd1\xe3X&amp;\xf5\x946\xf4\xa8\\\xb0\xd6\xa1HX\xa51u\xc5d:#\xc6\xc8\xc5\xd9)\xdeW,\xf6\x168\xe70h\x8aV\xe4\x18\xe9\x86\x1e\xef,\xa5(r\x8a\x84\x94\xe9\xfb\x81\xba\xf6h\x14w\x1e\xdc\xa3\xeb\x03MS\xb3?_\xb0n\x07\xee?|@\xe5=\xdb\xaeg\xb9\xda\xa0\xb4\xa2\xe4\x821\x86\\2U\xed\t!R\n\xc4\x98\xc8\xa5\x10cB+MU9\x8c5\xc4\x04\x90\x891c4|\xea\x93\x9f\xe0?\xfe\xdf\xff\xc7\xfc\xce\xdf\xf3{\xb8~\xe3\xc6\xa3\x1b\xf8\x8c\x1a\xd9\xfb&amp;\x14\xa6\x94\xf8\xe5_\xfa%\xfe_\x7f\xe9\xff\xcd\xe7?\xffy\xeaJr\x8e\x14#\xf5t\xf2(\xcc\xa5D\xdbv\xd4Z\xb3\xbf?g6\x9b\xe3\xfc\x01}\xd7\x93s\xc69\x0b\n\x8a64\xcd\x94!\x06j\xabQ(\\]\xa3\xb5\xc1kM\xd6\x8a\xa0\r\x00\x93fB\xdb\xb5(\xab\x99\x18\xcb\xc6\xb4(\xa5\xd8\xac\xc5\x98\x8d\xd2L|\x85Bq\xe3\xf8\x88Ye9[-1ZQP( \xa6D\xd7u\xa4\\\xd8\xb6=\n\xb0\xd6\xb2\xd8\x9b3\xf4=\x14\xe8\x86\xc0\x10"\x8cF\x16SD+MV\x9a_\xf9\xd2\x97\xf9?\xfe\x9f\xffO\x9c\xafV|\xe63\x9f\xe1\xc6\xcd\x9b\x1c\x1d\x1e\xb1\x7f\xb0\x8f\xd6\xcf\x1eH\xe5}\xe1\xb1J)\xbc\xfe\xda\xeb\xfc\xc5\xbf\xf0\x17\xf8\xbe\xef\xfb&gt;^\x7f\xfdur\n\xd2WJ\x81\x0f|\xe8#\x0c\xdd\x96\x07\xf7\xee\xb1\xe9z&amp;\x95\xe7[&gt;\xfe!n\x1c\x1fP\xd75\xdeW(\xa5\x18B@\x15A\x1e`59+\xa6\xb3\tm\xdbr\xb1\xda`\xace\xd24b\xb4@\xdb\x0f\xa4\x94\xd1V\x13\xc7\xe4\xdd\x1aK\xd7\xb5l\xdb\x8e\x93\xd33\xee\x9f\x9fRbbVW\x94\x9c\xd9\xf4\xbd\x8c\x86rf\xb5\xe98Y\xadQ\xdab\x8c"\x87\x88R\nm\x80\xa2h\x9a\x9af\xd2\x90B\xc4{O\x1f\x02m70\x84\x81\xa1\x0f\xc4\x9c\xf0\xd6QyGQP24\x93\t7\xae_c\xb1\xd8\xe3\x83\x1f\xfc\x10\xff\xd1\x7f\xf4\xbf\xe3[\xbe\xed\xdb\x9e9\xcf\xf5\xbe\xf0Xg\xa7\xa7|\xff?\xfa\x07\xfc\xd4\xe7\x7f\x82\xa3\xa3C\xdez\xeb-(\x92\x97\x1c\x1f\x1d\xe1\xac\xe1\xe1\xc5\x92!D\xbcs\x1c\xcf\x1bn\x1e\xcc\xb9}\xed\x80\xc6I\xa3Qi\x85b\x82\xd2F`,Fc\\E\xca\twt\xc0\xa6\xedX\xf7=\xd3\xa6\xa61\x96\xa6\xf1\x84XhcdH\x99T\xa0\xe4L\x1f\x13\xf3I\x856\x86\xbd\xc5\x82\xd9\xd9\x82\xe5\xf9\x92n\xbb\x04\x05\x8b\xaaB\x9a\x1d\x16MaH\x91m\x17\x18\x86\x88\x02\xa6\x95C)\xa0@\xe5\x1d\x86\x0c\n\xce\xce\xcf\xc99\xd345\x8b\xe9BB$\x8a\x10\x03\xfb{\xfb&lt;89!\xa6\xc4j\xb5\xe4\xf0`\x9f[7o\xb2X\xcc\xf9\xfb\x7f\xff\x1f\xf0\xe1\x8f~\x94\x83\x83\x83g\xca\xb8\x9ey\xc3\xca9\xf3S\x9f\xff&lt;\x7f\xe5/\xffe\xde\xbas\x97\x8b\xe5\x05\xdbv\x833F\x1a\x929sz\xf2\x80\x94\x06\x9c\xd1\\\xdb\x9b\xf2-\x9f|\x81\x97\x9e?fQW8]a\x8d#\x95\x84w\x86\xdaWXg(Z\xa1\xd0\xc4\x0cE)\x9e\xdb\x9b\xd2\xe7r\xd9PM\x05*ki\xfb\x80\xd20\x0c\x81b,\xc5X\xd6\xeb5\xa9\xc0\xe1|\xce\xed\xe3C6m\xcb\xfd\xfb\xf7\xb9s\xf7.\xebm;\xbe\xc6\x84\xfd\xe9\x84\xc5\xa4\xe6d\xd5\x12K!\xc5$MQ2\xb3\xe9\x8ci]\x03\x85\x8bM\xcb\xb6\xef\x89Q\xa1\xb4F\x1b\xcb\xc4{\xea\xa6f\x7f\xff\x90z2e\xb5ZR\xcdg\xf8\xba\x86R@i&gt;\xfe\xb1\x8f\xf1\xe5/}\x99\x93\x87\x0f9&lt;8x\xda\xb7\xea\x1d\xc73oX\x17\x17\x17\xfc\xf0\x0f\xff0\xaf\xbd\xfe\nm\xdb\xb1Z\xae\x18\xfa\x81b\x0cu]\x91bdZ7\xbc\xf0\xd2\x0b\xbcp\xb8\xe0\xb9\xa3=\x0e\x17\x13\xa6ME\xa5\xa0\xb2\x9e\xba\xaaP\x05jo\xd1\xda`\x9c&amp;)\x99\x11*\xa5@+\n\x1ac-\xceX4\x96\x94#Vi\x0e\x175\x14E\x9c4\x82\\\xc8\xd0;\x83Q\x90\x8f\xf6H9\x13R\xe1\xec\xc5\xe789}\x9eW\xef\x9f\xf1\xd5\xaf\xbf\xc2\xc3\xe5\x05\x07\x93\x86\xbd\xba\xc2+\x852\x8a\xc9d\x8eu\x15}\xb7\xc1\xf9\x1a\xeb\x1c}\xdf\x83v\x0c9\xb1\xdd\x06..\xd6\\,7\\\xbfv\xcc\xcc9b\x08\xac.\xce\xb9q\xed\x1a!\x04\xaa\xa6fu\xb1\xe4\xc7\x7f\xec\x9f\xf1K\xbf\xf0\xb3|\xfa\xd3\x9f\xe1\xeb_\xfb:\xcf?\xff\x02\xcd\xe4\xd9\x991&gt;\xd3\x86Ur\xe1\xf3?\xf1\x93\xfc\xe3\x1f\xfa!r\xd1\x80F\xa3\xa8\xbce\xd2\xd4\xec\xcf\xe7\x1cMj&gt;r\xfb\x1a/=w\x9d\xa9wxo\xa9\xbdcQM\xa8\x9d\xc1c\xb1N\x93B\xc1*M\x01\xf2\x90\xd0\x16\xac\xf5\xe4\x98@)\xbc5\xe8\x02\xa6\x80\xd6\x19\xe5-%e\x88\xa0\x8c\xc6j\x85\xb5\x9a&amp;)\x92\x97PZR\xa6\x00\x148\xa8,/\xee/\xf8\xc4K/\xf2\xea\x8b\xcf\xf1\xc5\xaf\xbd\xc2\x9d\xbb\xf7\xa4\x05R9\xb4\xd1L\xbceoo\x8a\xb5s\x9c\xf5hk\t!2\xbbX\x13rB\xeb\x16\xc8t\xfd\xc0\xf9\xd99)\x05\x9c\xb5L\xa7s\x16\xfb{|\xf1\x8b\xbf\xc2l:\xc5\xaaB\xce\x91{\xf7\xef\xd3\xbc\xfa\x1a\x7f\xe5\xaf\xfd5\x86\x10\xf9\xbd\xbf\xef\xf7P=#3\xc6g\xda\xb0\x860\xf0c?\xfec\xbc}\xf7m\xac\xb5\xc4\x18\x899Q\xd757n\xde\xe0\xa02|\xe2\xd6u^\xbaqH\xa5\r\xdeY\x941L\x8c#\xe7D\x8cP9G\x8e\x05J!\x86\x8c\xd6\nP\x94\x94\x89)`\xac\xc1j\x8b\xd1\x1a\xa35\xdahT1\x94\x921h\xf0\x1aRF\x95\x02)\x89\x81\xabB\xce\x01\x85B\x8d\xde\xa8)\x86l\x14\x13eh^\xbc\xc9\xcd\xa3}^}\xeb\x1e\xaf\xdf\xbdK\xbbm\xe9\xfb\x8eT2\xa1\xef\xa8\xab9\x93\xa6\xc6U\x1ec,{\xf39\xaer\xbcu\xb2\xe2b\xb5\xe4\x8d\xb7\xee\x10b\xa4\xa9\x1b\xaa\xba\xa2o[N\x1eFbJlG\xb0\xe1K/\xbe\xc8\xdbw\xde\xe6\xde\xbd\xfb\xfc\xe0\x0f\xfc#\xbe\xfa\xd5\xafr\xfb\xf6m\xbe\xf1\x9b\xbe\xe1\x99\xc8\xb5\x9e\xd9\x06i)\x85\xd7^}\x8d?\xff\xe7\xff&lt;\xf7\xee\xdde\x18\x06rJ4u\xc3b1\xe7\xda|\xce\'^\xb8\xc6\xf3Gs*\xad\xf1\xce\xe2\x9d\xa1\xb2\x16c-\x90\xa5_\xa5\x0c9e1\x18@)-\x18)\xe4{Vk\xbcuh\x14\xc6J{A\xa3@\xc9\xcfR\x14\xa5$r.\xe4\x94\xc9%C.P@+\r\x06JN\xe4\x92QJ\x16,\x8c\x82\xc6{\x8e\xf7\xf68\xda\xdf\xc3O\xa6\xd4\x93)M\xdd0\x9dL\x98\xf8\x8a\xba\xf1T\xde\xd1T5\xb5\xf7\x1c\xec\xcdQ\n6\xfd\x00#N\xbe\xa4D]Wl\xb7\xdde\xcf.\x84\xc8z\xdb\xa1\x94b\xdbu\xd4u\x85\xb7\x8e\xd7^}\x85\xd5r\xc5w\x7f\xcfw?\x13`\xc1g\xd6c\xe5\x94\xf9\xc2\x17\xbe\xc0\x9d\xb7\xdf\xa6\xa4LN\x01\xef+\xe6\x8b=\xf6\xa75\x1f\xb8v\xc0\xb5\xf9\x04\x8b\xc1y\x8f\xb2\x90\xb5\xe4Mi\x08h\xa30\xdaP(\x14Ud8M!\xe7\x82\xb1\x1a\xeb,\xce:TQ$2V\xcbb\x84\xb1\x06c-9\x15H\x02\x8bQ\xc6\xa2,\x90\x10\xaf\x953\xa8B*\x08\x12\x06\r*\x81\xd6\xe4\x98PZ\xd6\x9f\x9aJs\xd3\xcd\x99\xd75]L,7\x1br\x8e\x14\x85\xcc\x12\x01c=1\x17L\xcc\xbcx\xed\x98T\nC\xdf\xa1K\xe2|\xbd\xe1\xde\xbd\xfb\xf4!\x12\xcf\xcf8\x98/\xa8+O\x8c\x99\xe5\xc5\x85\x9c\x17\x9a\xa2\xc09\xcb\xdf\xfb{\x7f\x97\xfd\x83}\xfe\xd3\xff\xf4\xcfr\xfd\xc6\xf5\xa7z\xff\x9eI\xc3*\xa5prz\xc2\xdf\xfa[\x7f\x8b\xb6\xdd\x92bD\x19\xc3\xb5\xeb\xd7\xa8\xbc\xe3\xc6\xb4\xe2\xda\xacA\xa3\xd0F\x1a\x90)H\xa8\xc2\x19\xb4V(e0V\xb0\xe7)\t\x12\x14@{\x851\x06g-\xde9\x19\xa3\x90%\x81O\x85\x9c\nYeT\x01S9J.\xc4&gt;\xa0\x8c\x12\x83S\x90C\x19\xbd^D\xa3\x81\x8c\xd22\xc3\xcc\n\xc8\x90S\xc1y\x03%c]a\xea\x14\xde6(\n))\x86\x98H\x14\x86\x1c\xe9\x86\x81\x92\x13{\x13\xcb\xb5\xbd=\xce\x8f\x0e\xd9lZ\x9a\xbaa\xb5Z\xd1\x0f\x83\xf4\xe1b\xa2\xa9&lt;\xb7n\xde\xa0\xed[\xba\xae\xa7\x1fz\xba&gt;\xd3\x0f\x039&amp;\xfe\xe2_\xfc\x0b|\xf2\x93\x9f\xe0O\xff/\xffWO\xb5q\xfa\xec\xb5l\xc7\xe3G\x7f\xe4G\xf8\xa7\xff\xf4\x1f\xb3Y\xaf0Fs\xed\xda\x11\x93\xda2\xf7\x86\x9b{3&amp;\xfe\xd1\xa9\xe7,7\x16\xad\xc8\x05@1\xf5\r\x951c\x08qh%\x1e\xcc*C\xe5=\xd6Y|U\xe1\xebF\xfe\xf8\x1a\xef**_\xa3\x95\xc68\x87\xf3\x0e\xe3,\xda\xc9(&amp;\x93%&lt;\x1a5\x86\xc8B)H\xce\x05\xe4\x92\xd1\xc8\xf8\x06%\xdd\xac\x98"%J\x8e\xe6\xb4\x1ag\x99\x05C\xc2\x1b\x988Cc=J+&amp;\xde3\xaf\x1d\x93ICSW8g\x99\xcdf(\xc0Y\x079\x03\x8a\x10z\x86&gt;\xb0\\\xae\xd9l\xb6\xb4m\x871\x06\xad5]\xdf\xf3\x8f\xff\xf1?\xbe\xdc\x85|Z\xc73\xe7\xb1J)\x84!\xf0\xfd\xff\xe8\xfb9y\xf0\x00c-\x07\x07\x07L\x9a\t\xb5q\xdc\x9c5L\x9dB+\xd0Z\x11c\xc4j\x85\xd1\x8ey5\x93\x0fe\x0ccF\x85\xca\n\xad5\xd6\x1a\xac\xb1\x94\x92)I*=c\x0cE\x15L1\x14\xa0X\x8d5\x1a\xa5\x95t\xdc1(+\xbf\x1b\xfa@\xec\xc2\xd8\xfa4\x04UP\x05\n\t\x85\x81\\\xd0\xd6\xa2\x15(\xeb\xc8C$\x071\x04T\xa1(\xf1\xae9\x15\x94*8o\x89)\xa1\n\xe8\x92\xf0\xa6\xa04\x1c\x1f\xec\xb1\xb7^S{ORP9\xcby]\xd3\x0f\x81\xa2\x0c\xf7\x1e&lt;\xc4{OUW\xa0 \xc4H\xca\x85\xa9\xb6\xcc\xe6{$\xe0\xf57\xded\xb9\\r\xed\xda\xb5\xa7v\x1f\x9f9\x8fUJ\xe1\xcb_\xfe2\xff\xecG\xfe\x19%\'\x9c18\xeb\xf0V\xb1\xd7x\xa6\xdeR9\t1)\nB\xd4iC\xe5&lt;FI"&gt;1\x8e\xca\x18\xb4\xd18k\x98\xf8\x8a\xca9\xac5\xf8\xcaQO*\xeaI\x05Ja\x8a\xc1:\'^J)\x19\xf9DP(\xe2\x10\t]\xa0\xefzy\xfa5\x14\nJk\x94\xde-\xbeJ(-\nJH\xa4\x94 \xe6G\xc9s\x96Y"\xb1\x90\x83\xfc\x9cR\n\x94B\x17MH\t\x8d\x01\x14)%\x14\x85y5\xe1po\x0f\x8db1\x99\xb1\x98O)9\xd1\x0f\x1d1g6mO\x88\x89\xd9l\xca|:A\x8f9d\xdd\xd4(\xad8::\xc2{\xffT\xef\xe33\xe5\xb1J)\xf4}\xcf\xdf\xf9\xbb\x7f\x97\xd3\x933\x16\xf39G\xc7\x07L\x9a\x9a\xc3i\xc3Q\xed\x98\xb8\x82\xd3R\x91\x19\xa3\x98\xd65V\x8bQ\xa4\x14q\xcaP\xd5\xd5\x88z\x00\xad\x14\xdaJ\x12\xefjO\xa6\xe0\xbd\xc78+\x89\xbfu\x12\xd2\x1c\x840`\xb4F\x99\x11\xa3\x87`\xeau\x11\xff\x97\xad\xa6\x84D\x8ca\xf4\x82#:a4,\x05\xa3\xa7+Xc\xc8H\xf5\xa8\xf4\xb8\x8d\x9d\x0b)\x14\xf2\x95M\xec\x10\x07\xac\xb1\xe8\\\xc8\xa1\xa0u\xcf\xbc\xb1\x1c\xee\xcd\xb9X\xad\xb8\xf3\xf0\x94[7n\x12\x86\xc0\xb6\xed\xd9_\xccX\xad\xb7\x1c_\xbb\x8e3\x8a{\xf7\xee\xe0\x9d\xa5\xaa*\x8aR|\xf8C\x1f\xe6\xcf\xfc\x99?\xc3\xfe\xfe\xfeS\xbd\x97\xcf\x94a\x01\xbc\xf2\xca\xab\xfc\xc0\x0f\xfc J\xc3\xc1b\x1fk\x0c\xb5\xd1\xb8R0\xaaH\xbed4\x1a-\x1b7c[\xc0\x1a\xcb\xc4Wxm\xa9\xbd\xc7\x1a\x8b\xb5b\x10\xdaZJI\xd8J\x80r\xde:P\x8a\xca\xd5\x97\xe1T+E\xb6Vr1+\x15\xa2R\n;\xb1\x94\x02%%\x86\x14H&amp;\x91c$\x84 F\x9521\x0bT\xd983V\x92\x85\xb6\x0b\xa0\x15\xa9$\x8c\x92\xd7\x95t\xac\x90\xa2\x84\xbdT\x12\x06E\x1c\x12\x95\xaa@\'RQX\x1di\xea\x9aI]a\x8cf\xbdZ\xb1\xb7\xb7`\xb5\xbe\xcb\xde\xde\x1e\x87\x07\x87X\xab\xd8\xb6-\x93\xc9\x0c\xd4\x960\xf4\xe4\x94\xf8\xb7~\xef\xef\xe5[\xbf\xe5[\x9f\xb8\xd6\xff\x9by&lt;3\x86UJ!\x84\xc0?\xf8\xbe\xef\xe3\xf5\xd7_c\xe8\x05\xad\xd9T\x0b*\xa3\x998#q;CI\x19c4N\xe9\x11q \xcd\xcd\xcax\x8cV\xc4\x980\xd6\xa2@&lt;S\xe5\xa0\x88g\xb2c\x9fK\x8d\x06\xa4\xc7\xa47\xe7\x8c\x1a\xbf\xb6\xce]\xee\x03*%9Z\x8a\t\x1b\x06rI\xb2\xe1\x13\x131-I9Q\x14\x92\x87\x85 9\\Q\xe4\x9c(IBe\xa6Pb!\x93\x08d\xc9\xb3\x8a"\xe5L.\x05\x8c\xa1d0#\xea\xc1\x18\xa8\x9c\xe1`&gt;\xa5\x1f\xf6Y\xb5\x81.\x06\xa6\x93\x86\x87\xa7g\xec\xed-\xb0\x9d\xe6|)\x85M\x8c\x81\x94\nUUq\xfd\xfau\xc9\xbf\x9e\xf2\xf1\xcc\x18\x16\xc0W\xbe\xfce\xfe\xde\xf7}\x1fgg\'T\xae\xc6ZK?\xf4\x98iCe\x14\x95\x93\x8ex\xca\x1ae%\xc4y\xe3pZK\xc5g\xc71K\xce\x902\xb6\x91&lt;\x8a\x921\xdaJ\x93TIRo\xb4C\x1b\x8b\xd2\x9a\x94\xb3$\xf3E\xbc\x9b\xd2\xbbD\xbf\x8c\xa8\xce"\xdf\x1bgw\n\x83r\xa0\x8ce}qA\xd7\t&gt;\xcb\x19\xcb\x10\x06(E\xfab\xa9H\x88\xd4\x90F\x83SQ1\xc4A\n\x87$\x18y\xe7\x9c\x8c\x88\x8a$\xe39f@zjuUq\xbem\xa9*\xcfl:a\xd3\xf6\xdc\xbf\xff\x00c\x0c\xc6h\xac\x93\xa5\xd9&gt;\xf6(\x05_\xfe\xf2\x97\xd8n\xb7O}\xb4\xf3\xcc\x18V\xdb\xb6|\xff?\xfa~\xbe\xfe\xb5\xaf\x91SBU\xe0\xbda\x7f:eo\xd2`\x9d\x93\xfcG\x813Fn\xccX\xee\xcb\xc2h&amp;\xe7\x8c\x1f\x17"v=\x1c\xef=\xa6\xb2X\xeb(\x08\x80n\xe7\x95\n\x90Rd\x18Z\xb46h\xa5I!\xa3SFi\x85\xf7;\xc8\x8d\x86\x9c\xc9\x80u\x0e\x85"\x97\x84\x8d\x11\xe7\x1d!\xf4\x94\xa2d$\xa4\x0c\x99LV\x85\x92\n%\x03\x1a\xb4\x82!\x8e\x1dz \xe4 \xe3 k\xa5\x99k-$-\x95\xa2*\x94\xa2h\xea\x9a\xba\x1e\xa8\x9c\xe7l\xb9b6\x9f\xb1\xe9{\xba\xa1\x17&gt;\x8a(@\x07A\xa6\xcaR\x86\x1b{sO\xfbx\xeagP\x8a&lt;\xb5?\xf6\xa3?\xca_\xff\xab\x7f\x95\x18\x07|\xe5\x99\x8cOhe4\xd6Z\x86!\xa0\xb5\xc1Z\xa9\xee\xacb\xc4=\t\xe4\xb7\xf6\x15u\xd3\xc8\x85U\xe2\xc1\xb4\xd6(\xa3\xc9)Iu\xa6-N;\x9cv\x18\xeb\xb0\xcea\xb5\xc1\xfb\x06e4(\xd0Z\xa3\xb54Q\x8b\xd6\x14c(JQ\xbcCiM.YF89S\xb2\x14\x04\xb6\xae\xb0\x8d\xc3M&lt;\xbe\x91U\xad\x9c\xc6\xbe\x1a\x99\xd4\'\xf2\x98\xc4kk\x18RO\x08\x039\x17\x88\x11\xb2B\xa9\x8c\xb5\x86R\x14Z\x15*\xaf\x05\x89a+\x16\xb3=\xbcs\x9c_,\x891\xe3\xc7u\xb0R\x905\xb5\xae%\x8d\x0f\xd6\xaf|\xe9\xcb\x9c\x9d\x9d=\xed\xdb\xfa\xf4\r\x0b\xe0\xfe\xdd{\xfc\x8d\xbf\xf6W9??e&gt;\x9b\xe2\x8d\xc6;\xe93M\x9aF:\xefJr)o-\xe4BL\x92\\W\xbe\xc2h\x83\xb7\x96\x14\x13\x19(h\xc9m\x92\xb4$(\x90\xb2\xb4\x02"\x91\xa2A\x8dF\x99\xb3x\x10\xad\x0c\xda\x1a\x94\x91\x90\xa7\xfch F\x93\x9c\xa5h\x8d\xb2\x06SWh\xef\x881\x00\xe2\x95\x9c\xb3Xk0\xc6J_Ji\xcc\xae\x7f\x95\x91\xed\xe9\\\x04\x9e\xdcw\xc4\x94\x08C\xa0\x8f=(MH\x81\xa1\x93\x11\x8f\xb7\xe29\xad\xb6\x840\x10\xc3@\xdbw8\xef1\xc6\t\x93\x8d\xf58\xe7\xa8\xaa\n=^\x03\xf1\xb0\x9e{\xf7\xee\xf1\xe6\x9bo&gt;\xed[\xfal\x84\xc2;w\xde\xe6\x8d\xd7_\xc5Z\x01\xd1\r}\x0f\xd3\t\xe4L\xe5*J\x0e\x98\xb1\xe1\x9dr\xc2\x19\x8b\xd1\nm\xcc\xd8\xf9~\xb4T\x90R&amp;\xea\x84C\xb6Yr)\x90$_I9\x92\x92\xf4\x90r\x9fpNnH\x8a\x19\xa5\xa4u\xa0\x94\x14\x06:*\xd0\xb2|\x8aR\x92\xaa\xc9\x1ba\x8c\xa5jjR\x88\x0c\xdb\x81\xd8F1\xf6\x9c)I\xa1\x8d&amp;\x17MII\xb0\xf8\xa5@\x96\xf7\x081RbAe\xa4\x89j5\xc6Y\x94\xd5\xf4m\x87q\x06\xa34N\x8b\xd7+)\xe2\x8d"\x1a\x8dV\x850\x0c\x00x\xe7\xd1F\x13M\xc4\x18\t\xf5\x93\xc9\x84\xcdz\xcdj\xb9z\xda\xb7\xf4\xe9\x1a\xd6\x8en\xf1\xd5W\xbe\xce\xbd\xfb\x0f\xc89_.&lt;8\xe7d\xef/\x0eh]\xd0F\x9a\x88\xc6\x9aq\xbe\'\xd5a.\x19g,EI\xaeQy+#\x15dxL)\xa4\x18\t\x05\x94\xd78#\x9e\xcdhCQ\x11e=1\x071\xd01\xc9\xcf1\xa3L\x86\xa2PJ\xa3\x8a\x8cr\x8a\x92\xc14EX\xfcb\x0cxW\xd1\x96-1DbI\xa4\x9c\x05m\x9a\n\x18@K\x97\x9f\x08:\xcbh&amp;\x95L\x1c\x02\xce8\x941(U\x04\xe6\x93\x03yH\x84\x18Q\xdaR\xd5\x9e|Q\xb0\xd6\xb0\xdd\xaee\x85,\x0c\x97\x8b\x18%g\x9cu\xf4\xa1c&gt;\x9b\xb3\xde\xac%\xb5\xc8\xf9_\xe6\xb6\xbc\xff\rK)E\x08\x81\x9f\xfb\xb9\x9fg\xb9Z\xb1\xbaXJ\xee\x90\xc5k\xec\xaa\xab\x94\x03(A\r\xec\xca\x7f\xb2\xb4\x02\xac\xb1\xc8\xda\x8d`\xae\x14\n\xad\x95\x84\xc1\x10F\x08\x8a,"T\xbeBg\xd9fFgBJ8\x9d0Y\x03\x8a&lt;zD\x933J%\xacs\xe3k\n\xde=\xc5\x81\x94\xe2\xd8\xe8\x8cP2}\x1cd\x8d+Ib^\x92\x8cz\x94\x15\x02\x91\x123*C\x89\x99X"!%\xc8\x9aT\n\xe4\x84\xcf\x1am \x12\xc5h\x9d\xc1(C\xc9\x11U2)E\xd4\xb8\xa4\x9bS\xc6\x19MA\xd1\x0f\x03\xde\xd9\xf1\xfb\x85\x87\x0fO)\xc0l6\xc3\x18\xf3\xb4\xed\xea\xe9\xe6X\xa5\x14NON\xf8\xf2\x97~\x85!\x0c\xc4\x14\x19\xfa^r\x92\x94)\x14I\xa4\xadE\x15\x81\xb3H\xb2\x1fG[\x92\x1c)\xc6H\xc9E\xf0Q\x14bN\x82BHy4@0F\x93\x86@\xbbi\x89C$\xe5\xb1\xb9\x19\x03\xb9DI\xac\xd1\x18\xa5\ti\xa0\x1d\xb6\xb4\xad4\x1e\x87\xbec\xb3Z\xd2m7t\x9b\ra\xe8GO\x98\x08]$\xc7HQEx\x1b\xb2x\xb9\\\x92T}Z\xd1\x0f\x81.\x88Q\x95\x1c\x19R\'\xe7\xa4\rECV\xa0\xb3A+G\xea\x03\x90qV3\x9dL\xc89\xd1\xb6R\xb5n7\x9b1_\xcbh\x051F\xe9\xdfU\xd5eo\xaem[~\xf2\'\x7f\xf2\x92\xac\xf7_K\xc3\x02\xb8\x7f\xff&gt;\xf7\xee\xdf\'\x0c\x03\xce\n\xa2@k\xc50\x0ch\x059\x17\xb42x\xef\xd0\xda\n\xa9FN(\xeb\xa4\xd9i\xb4\xcc\x01k\x8f\xab+\x9cu\xcc\xa63&amp;\x93\t\xae\x96m\x1ac,\xda\x89W\xf2\x13A6\xe41\xe7Q\xb9\x10\x8b\x84\xd4X2\x81\x88Q\xe3|\xd2U\xe4\x18\xc7D]\xc2\x8b\x1d\x8b\x87\xbe\xef\xe9\xda\x9ev\xb3e\xe8\x039H\xeb\xa3\xa8B\xca\t\xa5\x0c%\'\x94VXg\xc7\rf\x81W\x97\x94\xb1\xca\xc8\xfb+\x85V\nk!\x95\x9eR"\x95\xb3\xd4\xd6\xa1Uf\xda4\x14eh\xa6S\xc9\xcfJ!\x8c}\x86\x98\x92&lt;\x90a\x90\x07P\x0b\n\xe3o\xff\xed\xbf\xcd\xd7\xbf\xfe\xf5\xa7z_\x9f\xaaa)\xa5\xb8\x7f\xff&gt;)%j_\x91S\xba\xd2\x90TP\xc0:\x83\x1e\x93^\xad5\x95\x9f\xe0}\x8ds\x15\xc6z\xac\x15h\x8b\xda\xedT)I\x9e\x8d5\x8f\xd6\xd1\xc7\x1b\xa8\x94B!\x1ePks\xb9La\x8d\x13Dh\x91\xa5-\xab4z\x84\xc5X\xe7\xa9\xaa\x86f2\xa3\xaa\x1b\x9c\x17cm\x9aFBN\xe1\x91\x87\x1d\xc3\xb3\xabd\x8fPk\x05\x1a\x9c\xd3X\xa7p\xde\xa0\xb5AY\x83v\x0e\xed,\x19Eb\xc0\xfb\nc*b\xc9\xa4\\Pz&lt;\xb7\xba\xa6\xeb{\xbc\xf3x\xef\xc9EP\x14\x05E\xed\x1d\xfb\x8b\xd9\xb8\x0b\xe9\xc6\xf7\xd4&lt;\xbc\xff\x80\xff\xfeo\xfcM\xd6\xeb\xf5S\xf3ZO\xd7c\x95"\xcdP\x14\xcey\xa6\xd3)\xc6\x18Y7\xd7\x1a7\xd2\xfehc\xd1HcSi\xa8\xebf,\xef\xc7\x91\x8c5\xb27\xa85\xda\x8e\x00\xbfqt\xa3\xb5\xbe\xc4\xb5\xbb\xdaI\xafj4\xb0\x02\x92\xe8\x8e\\\xa1\x99\xcc\x10\x03!GrL\xc4a \xa5 \xe3\x19y\x14\xb0\xce\xe3*\xa1\xa0\xf4\xb5\xc3\xd7\x8e\xba\xf64\xfb\r\xce;\\e\xf0\xb5\xa3i*\xeaIM\xed\xbc$\xefZ\x93A\xb0\xf5V\xa3lA\xd9\x82\xf5\x0e\xab\x1a\x86a\xc0\x18%\t\xbd*2)\xd0\ng\x0c\x95\xd5\xa40\xb07\x9f\xa1\x15\xcc\'5\xfb\xf3)\x94BH\x89I\xd30m\x04\xc3\xb5\x98\xcd\xb0\xd6\xf0\xb7\xfe\xf6\xdf\xe1W\xbe\xf8EA\xbb&gt;\x85\xe3\xe9V\x85\x08\xa6Jk\xc5t&gt;\x83\x02\xcb\xe5\x05\n\x18\xfa@AS\x8a"\xe5\x806\x131,\xf4e\xf7\xdcYKQ\xd2#\xdaU_Y\x8d\xaf\xeb,^\xc9k\xa7\x14\x85\x9f\xcazi:*\xc1Y\rI\x08?\x94\x12$B)\n\x955*\x172\x19g\x8d`\xddI\x02c\xd6ZBc\x90\x01\xb3\xaf*\xfa\x10(}\x8f\xa9%\x84+\xad\xc5\x10\x8d\xc2\x84\x846\x9a\x12\n\x83\x8d\xa4M&amp;\xaa\x88\xb5\x0e\x94A%\x8d\xa9-Vk\xda\xae\'\xe7\x88\xd2\x05\xaf\x0c\xebmOe\x1c\xcd\x08\xf7\x19\xba\x81\xe7\xae_c\xdb\xf5\xac7[\xbcs\xd4uC\x0c\x81\x8ba\x89R0\x9dN9&lt;\xbe!S\x86\x92\xf9+\xff\xdd_\xe1#Oi\x99\xf5\xa9\xf7\xb1n\xdc|\x0e\xef=\xeb\xbbw0\xc6\xe2\x9d\'\xa7$\xdeh\x0co\xd6:\xdc\x98\x9c*-\x1d\xf2T")*\x94\x15\xf8p\xde5&amp;G\xa4\xc3\xd0\xf58/\xe3\x17\xa3-\xd6\x1b\xf9{\x9c\xa1i\xa5\xa9\xaca\xe8[|U\x8d\x03d\xc9\x89\xd0\x9a\x94#j,\xe7\xaf\x8a\x00h#\xdd|\x93\xad\x8cuj\x8b\xd2H\x07\xdeY\xc9\xb7\n\xa4^\xfaKJg0\x055\x881\x92,\xd6\x08\xee+\xa9L\x89\x89b \xc7@J\x91\x983]I\x0c!\xd3L&amp;\xcc&amp;\xb5\xb0\tn[\xbcQ&lt;w\xf3\x1a\x0f\x1e\x9e\n\x93\xf3H\x14g\xb4f2\x9d1\x9d\xef\xa3\xada\xbb\xe9\x04\x85\xfa\x14\xb9L\x9f\xbaa\xed\xed\xed1\x9dN\xc7\xd0e\xa4|.\x19k+\x94\x91\x11\x08)\x11\xd30\x8eR\x18\x19\xf2\xc6D\xf9\xca\xb2D,\x19\xaf$\xaf\xa9\x9c ,\x9ds\xd2\xa32`\xbd\xac[\x8dI\x17*\x06\xeaj2\x0e\xaa\xa5M\x80\x96\xf6D5.\x94\x1a\xe3\t\x95\xa1d\xa1x\xd4)bS\x1aW\xfc\x03(\xf0\x13\x8f\xc1\x90uF+\x83\xd1PFf\x19\x90\xfd\xc82\xbe\xae2\x86\xac$\xf4\x9a,c\xa96v\xa4"c\x9f\xae\x0fl\x87\x9e\xa1\x18J\xd7\xe3\x8cfo6a\xd9ni\xaa\x1amd;{\xbb\xdd\xd2\x8e\x0c\xcc\xce5\x18ki\xbb-)\x05\xb6\x9bN\xaa\xca\xd9\x9c\xa1\x1f\x9e\n|\xe6\xa9\'\xef\xd7\xaf_\xe7s\x9f\xfb\x06\x12\xb0Zo\x891\xe2\x9c\xa7(%a(\x0b!\xac\xd2\x9am?\xb0\xea\x06\xce\x96k\xfa!2\xa4@\x18\x042\x92R"\xc5HL\x858\xc4q\xb4#FWt\xc1`PE\xd0\r)G\xca\x88_\x97q\x91$\xbd\xc6X\xdcn\xc7\xd0:\x946D\xa3Q\xd2}%[C\xb1\x96\xa85m\xe8\x08Av\x0bS\xca\x84\x12%o3\x96"q\x19\xa3\x05\xb1 3C1.5\xe2\xc7\x94\x06\xed\xed\xd8\xe57\x10\x15!&amp;6}G\x8c\x05\x95\x031\x0eXS\xd8\x9b\xcd\xd8\x9b-\x88)\x0bs\xf3\xd1!\x07\xfb\xfb\xec\xef\xef3\x9f\xcf\xb1\xd6\x12\x86\x818\xee\x1c\xe6$\xed\x93\x8b\x8b\x0b^y\xe5\x95\xa7\x92g=u\x8fU\xd55\x7f\xe4\x8f\xfd1~\xfc\xf3?)\xc9fR\xf8\xca\x8fh\x03\x81rf"!)\xee\x9d\x9ecG\x9c\xd5z\xb3\xa5\x9e8f\xf5\x94E\xcaLSM\x90)2\xda\x18l\x8eXk\x05\x12\xa3@[i\x8c\xc6\xa1\x97\xc6A\x91nw\x1a\x8d\xd3i/\xe5\xfa\xd8\xe2(9\x811\x98\x9cIZ\xa1C\x80\x14\xc7\xbeY\xcf\xaa\x1fP\x01R\x1a\xc4(+KI\x89b=\xe4HI\x99\x94\x15YCI U\x03\x94\x08\xbe\xb20\x1a]*\x92\xcf%\x1d\xc9\xc3\x882-\x91\x94\x0c)\xb5T\x93=\xe6\xf39\x07!s\xff\xec\x9c\xcdvCA\x8a\x14_\xd5L\x9aF\xe6\x8e\xc3@\xd7\xb6\x0c\xdb\x01\xe7+\xae]\xbb\xc6\x8f\xfc\xc8\x0f\xf3\xd2K/\xf1\x91\x8f|\x98\xa3\xe3\xe3\xdfT\xd4\xc3S7,\x80\x8f~\xecc\xfc\xfe\xdf\xff\xfb\xf9\xcaW\xbeJ\x0c=&amp;\x0e\xd0\xd4##\x8c\x91\x90Q\x8a\xec\xdf\x15h\xfb\x9e\xd3\xbeG\x9di&amp;\xf5\x9a\xf9t\xc3dRs\xbc\x98s&gt;\x9bp4\x9fq\x18\'L\x9b\t\xa5\x14\x9c\x93q\x8c1V\x16Xs!\xa5\xc2\x10\x86q.\xe7))3\xe4\x80*\xd0\x86\x8e\xd2#\xe1\xd98R\x06m\x14]\xd7S\xb4\xa1\xef\x07\xe20\x10\xa3,\xbd.7[\xf4:\xe3\xad\xc1\x99\xb1\xff6\x92\xa69\xab\xe9\x93(_\x84\x10\xe4a1\xd2\x15M1\x8e\xabi\x06\xa5\x1cC\xd9\xa2\x8c\xc6iG\xbf\xde\x92\x8c\xc1\x93\x98-\xf6\xd8G\x13\x94\xa1\xe9\x04\xf7\xde?&lt;!\xc5\x80\xf7\x0b\x81t\x0f\x83\x00\x10+\xcf\xf1\xb5\x1b\xbc\xfd\xd6\x1b\x1c\x1c\x1e\xf2O\xfe\xc9\x0f\xd1\xf7=\xff\xc1\x9f\xfc\x13\x1c\x1f\x1f\xff\xa6\x85\xc5\xa7nXJ\x89\x90\xd2\x1f\xf9#\x7f\x94_\xf8\x85_\xe6\xfb\xbf\xff\x1f\x08\xae\xc8h\x9c\xd6\x0c\xfd@c4%fjWSt!$\xe8\x12\xb4\xdb-\xf7O\xce\xd1\xd62\x9f\xcdx\xee\xe8\x90\xfd\xf9\x94\xd5a\xcbj;\xe3h/R\x19\xcb\xa4r\xb8\x14\x1f\xf5\xb6\x90\xa6d\x0c\x81\xa1HC\xb3dh\xc3@;D\xfa^:\xe3\x19\xc5\xc9\xb6e\xb3\xed\xa9\x9b\x86\x9c\x83\xec2j#|\xa0)\x11s"\xc4\x04Y\xa09\nEU{\x16M\x85\xd2\xd0\x8d4Hm\x1f\xe9Cb6\xa9\xc8\tb\x1c\x88y\xc7\x97\xa5`H2\xfb\x1c\x12\xa1$\x94\xd6T\xde\xcb\xcf\x96\x8eiS\xb3\\\xb78kXo[\x0e\xf7\x0f\xe8\xba\x8e\xaf\x7f\xfd\xeb\x97\xec\x80P\xe8\xc3\xc0\xb6}\x1d\xef\x0c\xcf=\xf7\x1co\xbd\xf9:?\xfb3\x9e\xbbw\xde\xe2?\xfbs\x7f\x8e\xc9d\xf2\x9bb\\O\xdd\xb0@\xbc\xd1s\xb7n\xf1\'\xff\x83?\xc1W\xbf\xfc\x05\xca \xebO9\x0e\xf4)\xa1\xbd#e\x8d.2\x84\xed\x93\x0cjc\x88\xc2\x82\xd7\xb6\xc4\x94\xe8\xfb\x81\xeb\x87\x07\xf4)\x12r&amp;\x96\xc2\xfe\xa4!\x94\x1a\x17\r\xb5\xb18\xa7\x05\xda\xa2\x15(G\x08\x03\xfd\x101\xd6\xb3\xed\x03\xdb!\x08=\xf7\x10Yu\x1do&gt;&lt;\xa3\xed\x07J\x16\xb2\x0e5\x0e\xc0\xb5\x82\xbd\xc5L\x1a\xa8\xde\xcbj?\x19\xad4\xab\xf3%\x9b\xd6\xb3\x98\xd48\'\x9b8}\xec\xd1H\x11\x90U"\xc4\x01\x8a\xc58\xc5\x90\x02C\xc9t}/\xa0@\x0c\x95\xb6(W\x0be%PB`\xdeTl\x87\xc0\xb4\xaeX.W\xec\xed\xed\t\x04\'\xc80&lt;!\xeb\xfe1&amp;\xae\xdd\xb8\xc1o\xfbm\xdf\xc1|\xb1\xe0\xa7\x7f\xea\xf3\xdc\xbbwW6\x88~\x93\x8eg\xc2\xb0v\xc9\xf37|\xe37\xf0m\x9f\xfb,\xaf|\xe9\x17QZ\xa6\xf7!\x06iF:\x83)\x82\xeal\xac&amp;\xc6\xc4\xd2hH\xe2q\xb6\xdb-\xa1\x1fH}K\xdf\xb7\xa4!\x10\x8e21\x17\xe6%1\xf5\x16\xe5\x1b\x86\xa4\x91,\r\x9c\xceR\xde\xa7@e\x8b4GSbH\x85\xd3m\xc7\xc5zK\x9f\n\'\x17K\xce\xd7k\xb6\x9b\rJ\x89\xb7\xb2\xd6r\xb2\xdc\xb0\xbf7gRU\xcc\xea\x8af\\\x8c\xedC`\xd3\xf7\\\xb4\x1d\xfb\xd3\x86\xc6Y\x8c\xb6\xa4\x12\x889\x92U\xa2`\xc8*\xa1\x92\xa2\x84BI\xb2\x0f\x99\xb5\xecUb,\xd5tNV\x86\xd2\x07B\x1c\xf0\xd6\xc8\x1c4\x1b\xac\xb3&lt;8;\xc3[w)V\xa0]\x852b\xac\x17\xe7K\xbe\xef\xef\xff=&gt;\xf0\xd2\x07\xf9\xc6o\xfaf\xfe\xe8\x1f\xfd\xc3\x97Z\x8a\xff\xda\x18\xd6\xeep\xceq\xb0?\xe7|\xb1\xa0\x0f\xa3\x8c\xdb\xe5\x85P4\x8dg\xdaT,fs\x8c\x93\xae\xfc\xc5j\xc3+o\xbe\xc1\xc9\xe99%%\xfa\xa1g\xb9\\\x01\x05\xad\n\xde\xc8\xca\xbd-`r\x8fA1d\xa1!\xea\x8d\xc1jCL\x89v\xd8\x90\x95f\x1b\x06.V\x1b\xce\xd7\x1b\xd6}\xcfv\xb3\xa1\x1f\x02\xa0\xe9R\xa2o\xb7\xb2Wh4\xf3f\xca\xa4rx\xad\xd0\xb3\t\xa9(\x8a\x12\xe4\x816R-n\x8c!\xa7D7lGl\x97T\x99E)rL$cI\xc8`]\x16e\x85\xec6u\x01?I\xec]\xbfA\x1b#\xe9\xe4!e\x08\xcc\xad\xc1:O\xbd\\\xcb\xb6sJ\x82\xd1r\x85\xf5vM3\x99b\xb4\xf4\xde\xee\xbe\xfd\x16\xf3\xd9\x94o\xfc\xc6\xcf\xf1\x81Q\x82\xf87\xebx\xa6\x0c\xab\x99L\xb8y\xeb6_\xff\xe5_\x92}@\xa5\x18\x86\x88\xf1\x9a\xba\xd28\xe7h\x9a\x86I\xd30\x9b4hk8^\xcc9Z\xcc\xf8\xea\x1bop\xf7\xde\x03\xfa\xb6e\xe8z\xb6\xc6\xf0\xc0\xad(\x18\x8a\xce8\xbbO\xca\x85\xd4\xf7xc\xa9\xbc\x17\xa2\xb2\xf1}r\x81M\xd7\xb3\xee;\xd6\xdb\x96\xae\xeb\xe8\xb7\xed8\x0c\xd7X\xebh\xaa\x06\xa7,~\x84M\xfb\xaabo\x7f\x0f\rl6[J\x11\xf5\tkd\xde\xd94\x13\xd0F\xda$[Yy\x9fV\x9a\xca\n\xfc\xb9\x8c\xcc7*\x03e\xd4\xa4\xceP\xa2\xe0\xd4\xe2\xd0\xd1\x0f=~2\xc5Z\xc7\xb6\xebd\xb96f&amp;\x95\xc7h\xcd\xf9j\x05)q&lt;k\x98[\xcdE\xbba\xd0\x8e\x97^x\x89\xcf|\xe6S\xfc\xae\xdf\xf5\xbb\xf9\x9e\xef\xfd^\x19\x9e\xff\xebhXJ)\xac\xb5|\xee\x9b\xbf\x95\x1f\xfd\x81\x7f\x88\xd5\x1e\xeb\x12\xaa\xef/)!U)\xa4!\xb0Z\xaf\xc8\xb9\xa3\xf2\x8e\xcaVL\x9c\xe6\x85\x1b\xc7TZ\xf3\xd6\x9d;\xb4\xdb\x96\xcdf-#\x92\x14\x99V\x9a\xb9\x12\x16\xe4\x90\x13\xb3\xc9TFB)Iy?\xf2\xac\xaf\xb6[\xd6]\xcbf\xdb\xb2\xdel\xd9\xb6[\t3!\xa0\x94\xe3\xf8\xf0\x88\x83\x83=\xae\x1d\xec\xd345\xdaUX\n)\x88\xe7\xe8\xba\x16AK\x95\x11\x8f\x1e\xe8\x86\x8e0\x046mG\x8c\x91\xa1\t\x1c.f\xb8\xe2P:\x92\x91\x19e\xa6\xc8\xb2\xab.xo\x89\xb9\x90bO\xbf\xd9\x806$d\xae:\xdd[@\x0882\xdehn,\xa6|\xd3\x87_\xe0#7\x0f\xc9E\xf3\xfa\xc99\xf7{\xc5\'\xbf\xe9\xdb\xf8\x1d\xdf\xfb\xbd|\xc7w|\'u]\xff\xa6\xdf\xcfg\xc6\xb0v\xc7\xf3/}\x88\xd9\xde!\xab\xf3SA\x02h\x19\xeb\xb4]Kg5\xd6(\xc1i\xe5@\xaa,\xb9\x8a\x0c]d\xb9\\\x91bb\xdaT\x84\xa1\xa7\x0b\x11\xdav\xac\xd6\x12i\x18\xd8\x9f\xcf\xa8\xbcc\x12e\x0b(\x87H\x9b\xb2\xa0\x0cra\x88\x91\xe5z\xc5z\xbda\xb3\xdd0t"\xdad\\\xc5s\xd7\x8f\xb9v\xe3\x06\x07\x8b\x05\xd3\xba\xc2zK\xc1\xa0\x95\x80\xf0B\xd7\xd2XE?D\xfa\x18(1\xd1\xc7 \x8a\x15C$\xc6A\x16*(L+\x8f\x9f\xd8\x11\x11\x91\xc8#\xbf\x96\xd6\x8a\x1c\x95\xd0P*H(\x11\x7fj;*\xe7X\x86\xc8\xb0Zc(\x1cV\x9a\xdf\xf9\xc9\x0f\xf1\x91\xe7\x9fc\xd1T\xb4\x9b-m\xe8y\xf1\xda\x1e\x1f&gt;\xb8\xc5\xbf\xf5G\xff0\x1f\xff\xf4g\x9f\x9aT\xca3eXJ)\xea\xa6&amp;Ph\xbbN\xe6z\xb9\x90\xe2\x80i&amp;\xa4\x9c\xd9\xac7\x9c\x8eR!\x99\x8c\xf7\xb2\x7f\x18b\xa2\x1d"]\x17G\xf4\x8c\xa2\x0b\x89\x98z\xfapJ\x8e\x99\x84fo6eV\xc9\xe6r\x01\x9c\x17\xa8p\x8a\x91\x10\x03\x9b\xcd\x96\xd5j\xcd\x10\xfa\xb1\xef\xa49::f:\xad\x88\xed9\x1b\x1d\xb1\xb1\xa1\xf8J\xe0\xcaZ\x08,\xbdV\x14\xe7\x88)c\x8b\xa1\x18K?v\xe6c\x08\xf4a\xa0d\xb0Z\x8ce\x873\xcb%`\x94A\x93d\x8b\xa8v\xac\xba\r1\x15l5e\xba\xbfO\xdb\x8d]~\r:\x07n-f\x1c=w\xc4\xf1\xe1&gt;\xfd\xbae\xd5\xb5\xac\x86\x81\xb7\xee\xde\xc7U\x8ek{\x81\xd9\xa4y\xaa\xe2N\xcf\x94a\x01\xe3\xae_b\xb3m\x999\x871\x86\x94-\xdeZN/\x96\xdc?9a\x88Y\xb6\x95\x8df6\x9d\xf3\xdc\x8d\xeb\xdc|\xfe%\xa6\x93\x8a\xd5z\xcd\xe9\xdbo\xf1\xf0\xce\x1dr\n\xb4!\xb1\xea\x06\xfa\x90\x99N\x1b&amp;\x93F\xf0\xef(\xac6\xe3,R \x11\xeb\xb6c\xb5\xde\x88\xbco\x8a8\xa5\x99\xcd\xe7\xacV+\xceN\x1e\x92C\x8f6\x8a\xc5|\xc1\xd1\xd1!{\xb3\x05M]\x01\xc2~\xd3\xf5\x03Z\xcb\xbc3\xa52z"0\xd6bSD9+\x8b\xb0\xe3^b\xce\x1a\xefjb\x0c#\x13\xe0\xc8\x14X\x94\xac\x82\xe5\xccv%j\xaem\xbb\x85\xae\xe3\xf0\xf0\x98\x8f\x7f\xf0\x16\x13S\xb1\\\xaf\x19b\xe0\xb5;o\xf3\xcb\xbf\xfau\xce\xd6\x1d\xd6j\xf6\x0e\xaf\xb3]-\xe1\xdf\xd0\x18\xc9\xb1[\x81\xdf\xdf\xdf\xe7\xe1\xdbwd\xe8k\xc6\x0b\xbcY\xf3\xe0\xf4\x9c\xf3\xad\x90\x8d\x1dL\xe7\xac\x87\x9e\xb7\xef\x9f\xb2\xec"7&gt;\xf82?\xf53?\xc7\xed\x1b\x87\x1c\xec\x1fP\x1bxp\xff&gt;\xa7\xab-1\xc1\xe9f\xcb\xc3\x8b\x15/\x7f\xf8\x83\xcc\x1a\xcfl2aVyrQ\xb4*\xd0\x97\xccz\xbb\xa5\xeb{\xe9\xac\xa7\xc8d1\xa7\x1fzB\x8cT\xd5\x84f\xb1@\x19I\xd4\x87\xd3\x0b\x1e\x9c\xad\x08\xb9p0\x9brmo\xca\xa4\x99\x92J\xa1\xef;\x86\x94\x88!\x12\x82$\xeduS\xd3\xd4\x15\xb5\xb58\xa3\xd1\xca\x8a\xcf\xcd"j @D-x\x7fk\x18b\x94\x15\xb7\\\xc8J\xd3\xb7[\xae\xcdg|\xf8\xc5\x9bTu\xc5j\xb9\xe5\xe4\xf4\x8c\xbb\xa7\'\xbc\xfa\xf6\x1d\x9a\xa6b\xdb\x07\xbaa`\xbd\xdd\x90\x86\xfe\xa9\xde\xcbg\xca\xb0vG\xe5+&amp;MM\xd5\xd4\x18\xadi7\x1</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67217592592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>784886</v>
+        <v>784889</v>
       </c>
       <c r="B9" t="n">
-        <v>1977</v>
+        <v>1957</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gabriel Milito</t>
+          <t>Ramón Díaz</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9dzTXtRaw profile type xmp\x00\x00H\x89\xadVK\xb2\x9c0\x0c\xdc\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3{UY\xe6\xf8i\x19\x98a\x06\xf3IU\x86\xc2\xc0X\x9fV\xbbe\xa0??\xbf\xe9\x17~\x91S \x19\xad\x93\xc1:\x9d,\xe8\xa4\xd9\x92F\x0e\xfe\xac\xa3\x16\x13\x9f\x93\x89M\xa3&amp;\x9d\x955\xcb\xb0\xfc\xff\xb2\x9e\xd9\xa4P\x188|\x1e\x08\xcdpR\x192\xa7\x94\xf4+\xec2\xe7\xa1;K8\x82\x0c\x085\x93\xd5\x1f\x17\x83\x15\x17\x9dah&lt;K\x94\xde\x0f\xdc\x05a\x8c\x8cqZ\x82\xe0*\xd6#,\xd0X\xc7\x93\'`!\x87\x15\x86+\\\x00\x95MT\xf0\xdc[\x80{\x8f\x12\x0bp\xae\xf3(\x9a\x15\x88P\xa7\x03e;\x06\xdb\x97\x04\'9\x16\x84\xc0\x19\x01G.\xb4\x15\xe3\x86\x183\x1c\xb3\xd3\xe8\xd0\x01\x19Er\x91\x95\xd0\x16\xee\x9a`\xb0D\x80\x9b\xdc\xb9m\xf6*/\xea\x08\xe4\x176\x04\xd0\xa3\xf6[\x19\xf5)jQ\xf32*\x95`H\x15\xb4f\x0f\xe5\xb8R\xae6\\k\x89p1\x9c\x82\xd28\xb81F\xc5\x14\xb4\x82\x82\x02O\xc8\xc52\xf2\xfc\xa2\x14\xe9\xda\x88\x16\x1b\xba\x03\xbe\xb0\xe7,\\\x93@\xef\x9c\xede~*\x0e\xbaV\xc7Sq\xa4HU\x15\x08\xa6|TI\xd5l\x01\xd1/\x1b\x0f\xbc\xa6,*\xb8N\xb0B\x17\x1a\x94\xbd(%\x9c+%\xed\x02U&gt;\xe1v\xb4\xa4\x8f&amp;\x15\xd4\x1b\xaf\x15\xb5\x8ae}\xc2\x8e\x11Q7\xfc(\'\x03GX\x0b\x14\x96\xb9\x127W\xd9c\xf2!F_\x9eL\xce\x00$\x87\xc5\x87n\\;\x89\'\\}\x8c8\xb0\xfc-\xb7\xb7\xd7\x96\x88.2e\x03\xf5\xa9\xafI\x00\x14\xff%$\x8a\xd2\xa1+\'\xe9&lt;Q\xbd\xf3"; B\x1b\xf8\xbe\xc7\x8a\x1dG\xa4\xe6\t\x92a\x94\xe0\x92!FSn \xdb\xa5qTtS?p\xac\x98\x90\xaa\x9e\x8a\xb1\x07\x9a\x84\xd3p\x97\x81mQ\xf6\x99\xeb=\xcd\xd9;\x13\x98\xb5\xcb\x89\xd65+\xd2\x80\xbf7\xdc\xec\xce\xda\x96\x9e\xf5\xf6\x9d\xca\xb0\xf9?\xd3\xedg\xc8V{\xd3\xf3\xfe\xfeO\x9b\xbf\x85\xf6\xfblkl\xda\xde\x9f\xefn^\\\xd6f\x96\xf3f^C\x83\x0e\x07C\xda\xf9\xde\x8b\x9dx\xd0\xd9\xf7^\xdfzSo\x83\xe1\xb9\xf2\xf2a\xbeY\x1f\x03\xd3\x1d\x89O9\xa4;\x12\x9frH\xcbw\xc89\x89\r\x0e;\xf4~\xf8\xde\x10\xa9\x01y\t\xbd\xdf0P\xbc\xab\x1c\xc7\x086\xc5\xdf|\x86w]\xa5e\xb5\xa63\xf3\x7f\x95$mt~\xbb\xdd\xb4K\xfdr\xda\xfb\xd1\x87\xd9\xe1\xdb\r_b\x7f\x01\xfc\xbf;\x9e\x01\xb7\xd3Q\x00\x00l\x83IDATx\xda\xec\xfdg\xb0%y\x9a\xde\x87\xfd\xfe63\x8f\xbb\xb6LW\xb5\x19?=~=v\x17+\xec.,A\n (\xc2H\x00!\x11\x90\x14\nE@\x8cP\xf0\x03\x89\x08\x05\x03\x9f()B\xa2"\x14\x12\x82\x00IA\x1f(\x10\x96\x82!\x16f\r\x80\xc5\xdaYofvfvf\xdaw\xd9\xeb\x8eK\xf3w\xfa\xf0\xe6\xb9u\xbb\xb6\xba\xb1\x10\x16[\xd5\x0bdDu\xdd\xbeu\xef9y2\xdf|\xed\xf3&gt;\x8f*\xa5\x14\xfe5?J)(\xa5.\xbf~\xf0\xe0\x01?\xfd\xd3?\xcd\xcb/\xbf\xcc\x07?\xf8A\x80\xcb\x7f\xff7\xc7\xaf\xef\xd0O\xfb\x04\x9e\xe6QJ\xe1\xec\xe4\x8c\xd7^}\x8d\x94\x12\xa5\x14^}\xf5U\xfe\xf4\x9f\xfa\xd3\xfc/\xfe\xc3?\xc5\xbf\xfb\xef\xfe!\xfe\xca\x7f\xf7\xdf1\x0c\x03\xa5\x94\xcb?\xbb\xdf}\xafg\xf2_\xf7\xe7\xd5&gt;\xed\x13\xf8Wu\xecn\xacR\xea\xd7\xdc\xe4\x9d\x87*\xa5\xd0\xf5\x1d\xf7\xee\xddc\xbb\xdd2\x9bM\xf9+\x7f\xf9/\xf3\x83?\xf4\x83\x80\xe6\xab\xab\x15\xff\xd9\xff\xe1\xcf\xf2\xab_\xfe2\xdf\xf3\xbd\xdf\xc3\xcb\x9f\xfc\x14\xfb{\xfb\xf4}\x07\x806\x86\x9c3]\xdb\x01\x05_U\xcc\xe7s\x94R\xe4\x9c\xd1Z_\xbe\xcf\xe3\x1e\xef\xea9\xfdV\xf4\x86\xea\xb7b(,\xa5\xb0Z\xae\xd0ZQ\xd55\xeb\xf5\x1ac\x0c\n\xc5\xe9\xe9\t(E\xd7u\xbc\xfe\xeak\xfc\xe4\xe7?\xcf\xfd\xfb\xf7\xf9\xca\xaf\xfc\n]\xbb\xe1k\xaf|\x9d;\xf7O\x98\xcd\x17\xa4\xd0SW\x96\xa6\xaa\x99L\xa6|\xe8\xa3\x1f\xe3\x1b&gt;\xf7\r|\xe9W\xbe@\xc9\x85z2\xe1\x13\x9f\xfc\x04\xd7\x8fo\xf0S\x9f\xff\tNO\x1f\xf2\xbf\xfe\xdf\xfco9::\xe6\xe1\xc3\x07\xdc\xbc\xf9\x1c\x87G\x878\xe7\x99\xcd\xa6X\xe7\x98N\xa7\x94R\xb8\x7f\xef&gt;\x17\xcb\x0bn\xde\xbc\xc9b\xb1\x90\x9b\xf1[\xc8\xc0~K\x19V)\x85\xf3\xb33\xbe\xf0\x85/\xf0}\xff\xc3\xff\xc0f\xb3\xe6\xb3\x9f\xfd\x1c!\x04B\x08&lt;|\xf8\x90\x1f\xfb\xd1\x1f\xa6\x1f\x06b\x08\x9c\x9e\x9e\x11S\xc2\xfb\x8an\xbb\xa1\x1f:\xb6m\x8f\xaf&amp;|\xc7o\xffN^\xfd\xfa\xd7\xb8{\xf7mT)\x0cCb\xddu\x94\x9c\x99\xcf&amp;\xcc\xe7\x0b\xda\xcd\x06_9\x9e\xbby\x9b;w\xef\xb0^]ppx\x84V\x06\xe7,\xf3\xc5\x82\xc5b\xc1\xb5k\xd7x\xf1\xc5\x97888\xe4\xbb\xbf\xe7\xbb\xb9\xb88\xe7/\xfd\xa5\xbf\xc4k\xaf\xbf\xce\xcb\x9f\xf8$\xff\xf3?\xf9\'\xf9\x8e\xef\xf8\x0e\x9a\xc9\xe4i_\xc2\xdf\xb0\xe3\xb7\x8ca\x95RX\xafV\xfc\xd7\xff\xd5\x7fES\xd7\x9c&lt;|\xc0\xff\xf3\xff\xf1\x7fG[\xcb\xc1\xfe\x01%gNNO\xd8\xb6-a\x88\x18kij\xcf\xa4i\xc8%\x93RFiCJ\x99\x83\xc3\x03\x8e\x8f\x8f9=9a\xb9\xbc \x84\x88\xb1\x8ev\xbba\xb5i\xc9\xa5\xb0\xb7\x98\xb1\x98M\xd9n7TU\x8dq\x9e\xb3\x93\x13\xac\xd1\x0cC\xa0\xaa*b\xca\x18\xad\xa9\xeb\x8a\xba\xa9\xd9n\xb6\xcc\xe7s\xb4Vl\xdb\x8e\xd9|\xc1|\xbe\xe0\xee\xbd\xbb\xfc\'\xff\xc9\x7f\xca\x7f\xf8\xa7\xfe\x14u]\xff\x96\xf0\\\xbf%r\xacR\n]\xdb\xb2^\xadY,\xe6\xfc\xdd\xbf\xf3w\xd0\n\xaa\xbaF\x81x\xa2\xed\x96m\xdb2\x0c\x01c,C\x088\xab\xb9X-9&lt;&lt;db\x1dgg\xe7|\xe37}#\xab\xd5\x8a\x07\xf7\xee\x10BB+\xc5|&gt;\xa7\x94\x82\xb7\x1a\xeb&lt;g\x17K\xba\xaecZWh\xa59\xbev\x9d\xedfK]UP2\xcd\xa2f:\x9f\xb3\xdd\xb4\xe4\x9c)\xa5\xb0\\\xae\xd0J\xb1\xddn1\xc6P\xd5\x136\xdb\r!\x04\x8c\xd1\xfc\xa5\xbf\xf4\xdf\xf0;\x7f\xd7\xef\xe2c\x1f\xfb\xd8\xd3\xbe\x9c\xbf!\xc7\xfb\xde\xb0J)\xf4]\xc7W\x7f\xf5\xab\x18c8;;\xe3\xe7\x7f\xeeg)%\xb3\x98\xcf\xe9C\xe0\xed\xbb\xf7\x89!`\x94\xc2[\x8b\xd6\no\x1d1f2\x85\x9231E\x9e\x7f\xfe6\xa7\'\x0f\xb9w\xef&gt;\x94B\xce\x99\xe5z\xc3\xfe^!\xa5\x84\xf7\x9e\xe3\xc3\x03&amp;\x93\x86\xf3\xb33\x86a\x10\x0f\xa3\r9E\xc9\x9f(\xc4\x10X\xafVT\xbeBiO\x08\x81\xc3\xa3#J\xce\xac\xd7+\x86\xa1g\xd3\xf68gi7[\xae\xdf\xb8NN\x997_\x7f\x9d\x17_|\x91\xa6i\x9e\xf6e\xfd\x97&gt;\xde\xf7\x86\xd5w=_\xfb\xda\xd7y\xfd\xb5\xd7\xf9\xe5/\xfc2\x7f\xed\xaf\xffU\xee\x9f\x9cP\n&lt;&lt;\xbb\xc0\x19MN\x91ySQ\xd5\x15\xdez\xba\xbe#\xc4\x80\xf7\x96\xe9t\xc6\xcd[\xcf\x11\xc3\xc0\xf2b\xc9\xd9\xf99]\xd7\xb3\xbf\xbf \x85\x84\x02V\xab5\xb3\xe9\x14\xa35\xb9\x14r\x0cL\x9aJ\x8c\xafd\xf6\xf6\x0e\xb8\x7f\xe7\x0e\xab\xd5\x12c\x0c{\x8b9\x877\xaeszr\x86\xa2\x10c\xe4\xee\x9d;@\x06e\xb8\xd8\xac\xa9\x9cc\x184\xa5\xc0j\xb9\xc2\x1fW\xfc\xe8\x8f\xfe\x187n&gt;\xc7\xc7&gt;\xf6Q|U=\xedK\xfb/u\xbc\xaf\r+\xe7\xccW\xbf\xfa\xab\xfc\x7f\xfe\xdb\xff\x96\x9f\xfd\xd9\x9f\xe1k_\xfd\x1agg\'\x94\x9cq\xce\x91R\x94P6i\xb8~\xed\x98\xaan\xe8\x87\x1e\xd6\x85\xc3\xc9\x01]7PU\r\xcb\x8b3\x96\xcb%m\xdb\x13b`ooNN\x91\x18#J\x15n\xdd\xb8\x86w\x9e\xe5f\xc3\xd0mQ\xc0\xcd\x9b7\x891q\xff\xe1)\xd3\xf9\x9c\x982)%r\xca,WKB\x08\xe2\xe5\xaa\x8a\xae\xeb\xd8n[\xea\xdac\xadB\x95B\x88\x11\xad\xa0\x14\xc5r\xb9\xa4\xaak\xfe\xd9\x0f\xff0\xeb\xcd\x86\xff\xe9\x1f\xfbc\xbc\xfc\x89\x97/\x93\xf9\xf7c\xce\xf5\xbeM\xdeK)\xb4\xdb-\x7f\xfd\xaf\xfdu\xfe\xaf\xff\xc5\xff\x85\xb3\xd3\x87\xb4\xeb5\xdah(\x85\x02\x18c8\xd8[0\x99\xce\x99\xcf\xe6\xf4]\xc7\xf9\xf9C\xfa&gt;2[,\xe8\xba\x8e\xf5z\xcd\x10\x021\x04\x941T\xdeq\xed\xf8\x88!D\xda\xed\x96ISQY\xcb\xd0\xf7\xac\xdb\x9e\x92\x0b]\x8c\xa0\x14\x9f\xf8\xc4\xa7\xd8lV4\xd3)w\xdf|\x8b\x93\xd3\x13J.(\x05\xa9(\xa6\x93\t)\x05\xb4\xb6\x14\n\x95\xf7h\xad\xe9\x87\x9e\xf5zKL\x89\x82\xc2;\xcb\xed[\xcf\xd1\xb5\x1d\x17\xab5/\xbc\xf8\x02\xff\xd6\xef\xff\xb7\xf9\xe3\x7f\xfc\x8f\xf3\xc9O~\x12\xe7\xdc\xfb\xce\xb8\xde\x97\x86UJ\xa1\xeb:~\xe9\x17~\x91\xff\xfc?\xff\xcf\xf9\xc2\x17\x7f\x99\x92#\xab\xf3s\x16{{\xa4\x18\xe8\xba\x16\xad4\xb7n\xde\xa4j\x1aR\xcc\xe4\x1cy\xf0\xf0\x01)f\xb4\xb5L\xa7\x13\xb6\x9b-\xf7\x1e\x9e\xe0\x9d\xc5zGSU\xec/\xe6\xcc\xa6S\xb6\x9b-G\x87\xfb\xb4\xdb\r)D\x94\xd6\x14\n\xdd\x109\xbb\xb8\xc0\xbb\n\xb4\xa2n\xa6\xc40\xa0\x95\xe4b\xe7\xcb\x15}H\x90\x01\x12\xfb\xfb\x87,\xf6\x17&lt;\xf7\xdc-\xea\xaa\xe1\xfe\xfd;\xbc\xf9\xc6\x9b\x9c\x9c\x9dS(\x84\x988\xdc\xdf\xc3\x18\x8b1\x86\xb6\x1b@\xc1\xf3\xb7o\xf3g\xff\xec\x9f\xe5\x0f\xfd{\xff\x1e\xde\xfb\xf7\x95q\xbd\xefBa)\x92\xb3\xbc\xf2\xb5\xaf\xf3_\xff7\xff5o\xbf\xf5&amp;\x8b\xd9\x94\xb7\xdfz\x8b\\\n\xb7\x9e\xbf\xcd\xfeb\x9f\xd7\xbe\xfe\x15\xdam\xcb\xd0\x07(\x85\xf5z\x83\xd6\x8a\x92!\xc5H\xd34\xd4\xde\x13\xfb\x01\xab\x15{\xb3\x19\xdaJ~\xb47\x9bR{O\xe3\x1d\xb3\xa6\xa1\x84\x81\xc9bA\x8c\x81\xed\xb6%\xea\xcc\xaci\xd0\xdaP55\xd3\xc5&gt;\x9b\xcd\x9a\xa1k9\xd8[\x10R\xc6\x87\xc0\xfd\x87\xe7X\x03\xfd0\xb0Z^\xe0\xad\xa5\xaaj\x9a\xc9\x84\xbai\x98\r\x81B\xe1b\xb9\xe6b\xb9\xc6;\xcbd\xd2p\xb07Gk\xcd\xe9\xc9C\xfe\xe6\xdf\xf8\x1b|\xe0\x03\x1f\xe0\x9b\xbe\xf9\x9bq\xce=\xed\xcb\xff\xeb&gt;\xcc\x9f\xfbs\x7f\xee\xcf=\xed\x93\xf8\xf5\x1e\xa5\x14\xda\xb6\xe5\x9f\xfe\xe3\x7f\xc2_\xf8/\xff&lt;?\xf8\x03\xff\x08\xad\xe0\xf6\xed\xdb,\x97\x17c+Aa\x8db\xb3Z\x91S`ROXm\xd6\xa4\x18\x08\xc3@S{\x9c5,fS&amp;\xd3)M]\x91\x86\x8e\xc5b\xca\xc1\xc1\x1e\x07\x8b\x05\x95\xb5\xe4Rp\xc60\xc4@\xc9\x89\x923\xdb\xf5\x86.%\xb6mGL\x11\xad5g\x17\xe7\\\\,\x99\xcf\xa6T\x95\xe7\xee\xdd\xfb\\\xac\xb7l6\x1bB\xca\x18\xadh\xdb\x8e\x10#\xddv\xcb\xbd\xfb\xf7X\x9e_\xb0\xddl\xa4\xa2\r\x81\x98\x121\xca\xeb\x95\x92\x99L\xa7(`\xb9Z\x91R\xe1\x17\x7f\xf1\xe7\xb9v|\xcc\xad\xdb\xcf\xcb\x04\xe1}\xe0\xb9\xdeW\xa1p\xbb\xdd\xf2s?\xf33\xfc\x17\xff\xc5\xff\x8d\x1f\xfc\x81\x7f\x88\xb5\x86\xda{\xb4R\\\xac\xd6\xa4\x94\xa5\xd2k\xaa\xd1\xe3X&amp;\xf5\x946\xf4\xa8\\\xb0\xd6\xa1HX\xa51u\xc5d:#\xc6\xc8\xc5\xd9)\xdeW,\xf6\x168\xe70h\x8aV\xe4\x18\xe9\x86\x1e\xef,\xa5(r\x8a\x84\x94\xe9\xfb\x81\xba\xf6h\x14w\x1e\xdc\xa3\xeb\x03MS\xb3?_\xb0n\x07\xee?|@\xe5=\xdb\xaeg\xb9\xda\xa0\xb4\xa2\xe4\x821\x86\\2U\xed\t!R\n\xc4\x98\xc8\xa5\x10cB+MU9\x8c5\xc4\x04\x90\x891c4|\xea\x93\x9f\xe0?\xfe\xdf\xff\xc7\xfc\xce\xdf\xf3{\xb8~\xe3\xc6\xa3\x1b\xf8\x8c\x1a\xd9\xfb&amp;\x14\xa6\x94\xf8\xe5_\xfa%\xfe_\x7f\xe9\xff\xcd\xe7?\xffy\xeaJr\x8e\x14#\xf5t\xf2(\xcc\xa5D\xdbv\xd4Z\xb3\xbf?g6\x9b\xe3\xfc\x01}\xd7\x93s\xc69\x0b\n\x8a64\xcd\x94!\x06j\xabQ(\\]\xa3\xb5\xc1kM\xd6\x8a\xa0\r\x00\x93fB\xdb\xb5(\xab\x99\x18\xcb\xc6\xb4(\xa5\xd8\xac\xc5\x98\x8d\xd2L|\x85Bq\xe3\xf8\x88Ye9[-1ZQP( \xa6D\xd7u\xa4\\\xd8\xb6=\n\xb0\xd6\xb2\xd8\x9b3\xf4=\x14\xe8\x86\xc0\x10"\x8cF\x16SD+MV\x9a_\xf9\xd2\x97\xf9?\xfe\x9f\xffO\x9c\xafV|\xe63\x9f\xe1\xc6\xcd\x9b\x1c\x1d\x1e\xb1\x7f\xb0\x8f\xd6\xcf\x1eH\xe5}\xe1\xb1J)\xbc\xfe\xda\xeb\xfc\xc5\xbf\xf0\x17\xf8\xbe\xef\xfb&gt;^\x7f\xfdur\n\xd2WJ\x81\x0f|\xe8#\x0c\xdd\x96\x07\xf7\xee\xb1\xe9z&amp;\x95\xe7[&gt;\xfe!n\x1c\x1fP\xd75\xdeW(\xa5\x18B@\x15A\x1e`59+\xa6\xb3\tm\xdbr\xb1\xda`\xace\xd24b\xb4@\xdb\x0f\xa4\x94\xd1V\x13\xc7\xe4\xdd\x1aK\xd7\xb5l\xdb\x8e\x93\xd33\xee\x9f\x9fRbbVW\x94\x9c\xd9\xf4\xbd\x8c\x86rf\xb5\xe98Y\xadQ\xdab\x8c"\x87\x88R\nm\x80\xa2h\x9a\x9af\xd2\x90B\xc4{O\x1f\x02m70\x84\x81\xa1\x0f\xc4\x9c\xf0\xd6QyGQP24\x93\t7\xae_c\xb1\xd8\xe3\x83\x1f\xfc\x10\xff\xd1\x7f\xf4\xbf\xe3[\xbe\xed\xdb\x9e9\xcf\xf5\xbe\xf0Xg\xa7\xa7|\xff?\xfa\x07\xfc\xd4\xe7\x7f\x82\xa3\xa3C\xdez\xeb-(\x92\x97\x1c\x1f\x1d\xe1\xac\xe1\xe1\xc5\x92!D\xbcs\x1c\xcf\x1bn\x1e\xcc\xb9}\xed\x80\xc6I\xa3Qi\x85b\x82\xd2F`,Fc\\E\xca\twt\xc0\xa6\xedX\xf7=\xd3\xa6\xa61\x96\xa6\xf1\x84XhcdH\x99T\xa0\xe4L\x1f\x13\xf3I\x856\x86\xbd\xc5\x82\xd9\xd9\x82\xe5\xf9\x92n\xbb\x04\x05\x8b\xaaB\x9a\x1d\x16MaH\x91m\x17\x18\x86\x88\x02\xa6\x95C)\xa0@\xe5\x1d\x86\x0c\n\xce\xce\xcf\xc99\xd345\x8b\xe9BB$\x8a\x10\x03\xfb{\xfb&lt;89!\xa6\xc4j\xb5\xe4\xf0`\x9f[7o\xb2X\xcc\xf9\xfb\x7f\xff\x1f\xf0\xe1\x8f~\x94\x83\x83\x83g\xca\xb8\x9ey\xc3\xca9\xf3S\x9f\xff&lt;\x7f\xe5/\xffe\xde\xbas\x97\x8b\xe5\x05\xdbv\x833F\x1a\x929sz\xf2\x80\x94\x06\x9c\xd1\\\xdb\x9b\xf2-\x9f|\x81\x97\x9e?fQW8]a\x8d#\x95\x84w\x86\xdaWXg(Z\xa1\xd0\xc4\x0cE)\x9e\xdb\x9b\xd2\xe7r\xd9PM\x05*ki\xfb\x80\xd20\x0c\x81b,\xc5X\xd6\xeb5\xa9\xc0\xe1|\xce\xed\xe3C6m\xcb\xfd\xfb\xf7\xb9s\xf7.\xebm;\xbe\xc6\x84\xfd\xe9\x84\xc5\xa4\xe6d\xd5\x12K!\xc5$MQ2\xb3\xe9\x8ci]\x03\x85\x8bM\xcb\xb6\xef\x89Q\xa1\xb4F\x1b\xcb\xc4{\xea\xa6f\x7f\xff\x90z2e\xb5ZR\xcdg\xf8\xba\x86R@i&gt;\xfe\xb1\x8f\xf1\xe5/}\x99\x93\x87\x0f9&lt;8x\xda\xb7\xea\x1d\xc73oX\x17\x17\x17\xfc\xf0\x0f\xff0\xaf\xbd\xfe\nm\xdb\xb1Z\xae\x18\xfa\x81b\x0cu]\x91bdZ7\xbc\xf0\xd2\x0b\xbcp\xb8\xe0\xb9\xa3=\x0e\x17\x13\xa6ME\xa5\xa0\xb2\x9e\xba\xaaP\x05jo\xd1\xda`\x9c&amp;)\x99\x11*\xa5@+\n\x1ac-\xceX4\x96\x94#Vi\x0e\x175\x14E\x9c4\x82\\\xc8\xd0;\x83Q\x90\x8f\xf6H9\x13R\xe1\xec\xc5\xe789}\x9eW\xef\x9f\xf1\xd5\xaf\xbf\xc2\xc3\xe5\x05\x07\x93\x86\xbd\xba\xc2+\x852\x8a\xc9d\x8eu\x15}\xb7\xc1\xf9\x1a\xeb\x1c}\xdf\x83v\x0c9\xb1\xdd\x06..\xd6\\,7\\\xbfv\xcc\xcc9b\x08\xac.\xce\xb9q\xed\x1a!\x04\xaa\xa6fu\xb1\xe4\xc7\x7f\xec\x9f\xf1K\xbf\xf0\xb3|\xfa\xd3\x9f\xe1\xeb_\xfb:\xcf?\xff\x02\xcd\xe4\xd9\x991&gt;\xd3\x86Ur\xe1\xf3?\xf1\x93\xfc\xe3\x1f\xfa!r\xd1\x80F\xa3\xa8\xbce\xd2\xd4\xec\xcf\xe7\x1cMj&gt;r\xfb\x1a/=w\x9d\xa9wxo\xa9\xbdcQM\xa8\x9d\xc1c\xb1N\x93B\xc1*M\x01\xf2\x90\xd0\x16\xac\xf5\xe4\x98@)\xbc5\xe8\x02\xa6\x80\xd6\x19\xe5-%e\x88\xa0\x8c\xc6j\x85\xb5\x9a&amp;)\x92\x97PZR\xa6\x00\x148\xa8,/\xee/\xf8\xc4K/\xf2\xea\x8b\xcf\xf1\xc5\xaf\xbd\xc2\x9d\xbb\xf7\xa4\x05R9\xb4\xd1L\xbceoo\x8a\xb5s\x9c\xf5hk\t!2\xbbX\x13rB\xeb\x16\xc8t\xfd\xc0\xf9\xd99)\x05\x9c\xb5L\xa7s\x16\xfb{|\xf1\x8b\xbf\xc2l:\xc5\xaaB\xce\x91{\xf7\xef\xd3\xbc\xfa\x1a\x7f\xe5\xaf\xfd5\x86\x10\xf9\xbd\xbf\xef\xf7P=#3\xc6g\xda\xb0\x860\xf0c?\xfec\xbc}\xf7m\xac\xb5\xc4\x18\x899Q\xd757n\xde\xe0\xa02|\xe2\xd6u^\xbaqH\xa5\r\xdeY\x941L\x8c#\xe7D\x8cP9G\x8e\x05J!\x86\x8c\xd6\nP\x94\x94\x89)`\xac\xc1j\x8b\xd1\x1a\xa35\xdahT1\x94\x921h\xf0\x1aRF\x95\x02)\x89\x81\xabB\xce\x01\x85B\x8d\xde\xa8)\x86l\x14\x13eh^\xbc\xc9\xcd\xa3}^}\xeb\x1e\xaf\xdf\xbdK\xbbm\xe9\xfb\x8eT2\xa1\xef\xa8\xab9\x93\xa6\xc6U\x1ec,{\xf39\xaer\xbcu\xb2\xe2b\xb5\xe4\x8d\xb7\xee\x10b\xa4\xa9\x1b\xaa\xba\xa2o[N\x1eFbJlG\xb0\xe1K/\xbe\xc8\xdbw\xde\xe6\xde\xbd\xfb\xfc\xe0\x0f\xfc#\xbe\xfa\xd5\xafr\xfb\xf6m\xbe\xf1\x9b\xbe\xe1\x99\xc8\xb5\x9e\xd9\x06i)\x85\xd7^}\x8d?\xff\xe7\xff&lt;\xf7\xee\xdde\x18\x06rJ4u\xc3b1\xe7\xda|\xce\'^\xb8\xc6\xf3Gs*\xad\xf1\xce\xe2\x9d\xa1\xb2\x16c-\x90\xa5_\xa5\x0c9e1\x18@)-\x18)\xe4{Vk\xbcuh\x14\xc6J{A\xa3@\xc9\xcfR\x14\xa5$r.\xe4\x94\xc9%C.P@+\r\x06JN\xe4\x92QJ\x16,\x8c\x82\xc6{\x8e\xf7\xf68\xda\xdf\xc3O\xa6\xd4\x93)M\xdd0\x9dL\x98\xf8\x8a\xba\xf1T\xde\xd1T5\xb5\xf7\x1c\xec\xcdQ\n6\xfd\x00#N\xbe\xa4D]Wl\xb7\xdde\xcf.\x84\xc8z\xdb\xa1\x94b\xdbu\xd4u\x85\xb7\x8e\xd7^}\x85\xd5r\xc5w\x7f\xcfw?\x13`\xc1g\xd6c\xe5\x94\xf9\xc2\x17\xbe\xc0\x9d\xb7\xdf\xa6\xa4LN\x01\xef+\xe6\x8b=\xf6\xa75\x1f\xb8v\xc0\xb5\xf9\x04\x8b\xc1y\x8f\xb2\x90\xb5\xe4Mi\x08h\xa30\xdaP(\x14Ud8M!\xe7\x82\xb1\x1a\xeb,\xce:TQ$2V\xcbb\x84\xb1\x06c-9\x15H\x02\x8bQ\xc6\xa2,\x90\x10\xaf\x953\xa8B*\x08\x12\x06\r*\x81\xd6\xe4\x98PZ\xd6\x9f\x9aJs\xd3\xcd\x99\xd75]L,7\x1br\x8e\x14\x85\xcc\x12\x01c=1\x17L\xcc\xbcx\xed\x98T\nC\xdf\xa1K\xe2|\xbd\xe1\xde\xbd\xfb\xf4!\x12\xcf\xcf8\x98/\xa8+O\x8c\x99\xe5\xc5\x85\x9c\x17\x9a\xa2\xc09\xcb\xdf\xfb{\x7f\x97\xfd\x83}\xfe\xd3\xff\xf4\xcfr\xfd\xc6\xf5\xa7z\xff\x9eI\xc3*\xa5prz\xc2\xdf\xfa[\x7f\x8b\xb6\xdd\x92bD\x19\xc3\xb5\xeb\xd7\xa8\xbc\xe3\xc6\xb4\xe2\xda\xacA\xa3\xd0F\x1a\x90)H\xa8\xc2\x19\xb4V(e0V\xb0\xe7)\t\x12\x14@{\x851\x06g-\xde9\x19\xa3\x90%\x81O\x85\x9c\nYeT\x01S9J.\xc4&gt;\xa0\x8c\x12\x83S\x90C\x19\xbd^D\xa3\x81\x8c\xd22\xc3\xcc\n\xc8\x90S\xc1y\x03%c]a\xea\x14\xde6(\n))\x86\x98H\x14\x86\x1c\xe9\x86\x81\x92\x13{\x13\xcb\xb5\xbd=\xce\x8f\x0e\xd9lZ\x9a\xbaa\xb5Z\xd1\x0f\x83\xf4\xe1b\xa2\xa9&lt;\xb7n\xde\xa0\xed[\xba\xae\xa7\x1fz\xba&gt;\xd3\x0f\x039&amp;\xfe\xe2_\xfc\x0b|\xf2\x93\x9f\xe0O\xff/\xffWO\xb5q\xfa\xec\xb5l\xc7\xe3G\x7f\xe4G\xf8\xa7\xff\xf4\x1f\xb3Y\xaf0Fs\xed\xda\x11\x93\xda2\xf7\x86\x9b{3&amp;\xfe\xd1\xa9\xe7,7\x16\xad\xc8\x05@1\xf5\r\x951c\x08qh%\x1e\xcc*C\xe5=\xd6Y|U\xe1\xebF\xfe\xf8\x1a\xef**_\xa3\x95\xc68\x87\xf3\x0e\xe3,\xda\xc9(&amp;\x93%&lt;\x1a5\x86\xc8B)H\xce\x05\xe4\x92\xd1\xc8\xf8\x06%\xdd\xac\x98"%J\x8e\xe6\xb4\x1ag\x99\x05C\xc2\x1b\x988Cc=J+&amp;\xde3\xaf\x1d\x93ICSW8g\x99\xcdf(\xc0Y\x079\x03\x8a\x10z\x86&gt;\xb0\\\xae\xd9l\xb6\xb4m\x871\x06\xad5]\xdf\xf3\x8f\xff\xf1?\xbe\xdc\x85|Z\xc73\xe7\xb1J)\x84!\xf0\xfd\xff\xe8\xfb9y\xf0\x00c-\x07\x07\x07L\x9a\t\xb5q\xdc\x9c5L\x9dB+\xd0Z\x11c\xc4j\x85\xd1\x8ey5\x93\x0fe\x0ccF\x85\xca\n\xad5\xd6\x1a\xac\xb1\x94\x92)I*=c\x0cE\x15L1\x14\xa0X\x8d5\x1a\xa5\x95t\xdc1(+\xbf\x1b\xfa@\xec\xc2\xd8\xfa4\x04UP\x05\n\t\x85\x81\\\xd0\xd6\xa2\x15(\xeb\xc8C$\x071\x04T\xa1(\xf1\xae9\x15\x94*8o\x89)\xa1\n\xe8\x92\xf0\xa6\xa04\x1c\x1f\xec\xb1\xb7^S{ORP9\xcby]\xd3\x0f\x81\xa2\x0c\xf7\x1e&lt;\xc4{OUW\xa0 \xc4H\xca\x85\xa9\xb6\xcc\xe6{$\xe0\xf57\xded\xb9\\r\xed\xda\xb5\xa7v\x1f\x9f9\x8fUJ\xe1\xcb_\xfe2\xff\xecG\xfe\x19%\'\x9c18\xeb\xf0V\xb1\xd7x\xa6\xdeR9\t1)\nB\xd4iC\xe5&lt;FI"&gt;1\x8e\xca\x18\xb4\xd18k\x98\xf8\x8a\xca9\xac5\xf8\xcaQO*\xeaI\x05Ja\x8a\xc1:\'^J)\x19\xf9DP(\xe2\x10\t]\xa0\xefzy\xfa5\x14\nJk\x94\xde-\xbeJ(-\nJH\xa4\x94 \xe6G\xc9s\x96Y"\xb1\x90\x83\xfc\x9cR\n\x94B\x17MH\t\x8d\x01\x14)%\x14\x85y5\xe1po\x0f\x8db1\x99\xb1\x98O)9\xd1\x0f\x1d1g6mO\x88\x89\xd9l\xca|:A\x8f9d\xdd\xd4(\xad8::\xc2{\xffT\xef\xe33\xe5\xb1J)\xf4}\xcf\xdf\xf9\xbb\x7f\x97\xd3\x933\x16\xf39G\xc7\x07L\x9a\x9a\xc3i\xc3Q\xed\x98\xb8\x82\xd3R\x91\x19\xa3\x98\xd65V\x8bQ\xa4\x14q\xcaP\xd5\xd5\x88z\x00\xad\x14\xdaJ\x12\xefjO\xa6\xe0\xbd\xc78+\x89\xbfu\x12\xd2\x1c\x840`\xb4F\x99\x11\xa3\x87`\xeau\x11\xff\x97\xad\xa6\x84D\x8ca\xf4\x82#:a4,\x05\xa3\xa7+Xc\xc8H\xf5\xa8\xf4\xb8\x8d\x9d\x0b)\x14\xf2\x95M\xec\x10\x07\xac\xb1\xe8\\\xc8\xa1\xa0u\xcf\xbc\xb1\x1c\xee\xcd\xb9X\xad\xb8\xf3\xf0\x94[7n\x12\x86\xc0\xb6\xed\xd9_\xccX\xad\xb7\x1c_\xbb\x8e3\x8a{\xf7\xee\xe0\x9d\xa5\xaa*\x8aR|\xf8C\x1f\xe6\xcf\xfc\x99?\xc3\xfe\xfe\xfeS\xbd\x97\xcf\x94a\x01\xbc\xf2\xca\xab\xfc\xc0\x0f\xfc J\xc3\xc1b\x1fk\x0c\xb5\xd1\xb8R0\xaaH\xbed4\x1a-\x1b7c[\xc0\x1a\xcb\xc4Wxm\xa9\xbd\xc7\x1a\x8b\xb5b\x10\xdaZJI\xd8J\x80r\xde:P\x8a\xca\xd5\x97\xe1T+E\xb6Vr1+\x15\xa2R\n;\xb1\x94\x02%%\x86\x14H&amp;\x91c$\x84 F\x9521\x0bT\xd983V\x92\x85\xb6\x0b\xa0\x15\xa9$\x8c\x92\xd7\x95t\xac\x90\xa2\x84\xbdT\x12\x06E\x1c\x12\x95\xaa@\'RQX\x1di\xea\x9aI]a\x8cf\xbdZ\xb1\xb7\xb7`\xb5\xbe\xcb\xde\xde\x1e\x87\x07\x87X\xab\xd8\xb6-\x93\xc9\x0c\xd4\x960\xf4\xe4\x94\xf8\xb7~\xef\xef\xe5[\xbf\xe5[\x9f\xb8\xd6\xff\x9by&lt;3\x86UJ!\x84\xc0?\xf8\xbe\xef\xe3\xf5\xd7_c\xe8\x05\xad\xd9T\x0b*\xa3\x998#q;CI\x19c4N\xe9\x11q \xcd\xcd\xcax\x8cV\xc4\x980\xd6\xa2@&lt;S\xe5\xa0\x88g\xb2c\x9fK\x8d\x06\xa4\xc7\xa47\xe7\x8c\x1a\xbf\xb6\xce]\xee\x03*%9Z\x8a\t\x1b\x06rI\xb2\xe1\x13\x131-I9Q\x14\x92\x87\x85 9\\Q\xe4\x9c(IBe\xa6Pb!\x93\x08d\xc9\xb3\x8a"\xe5L.\x05\x8c\xa1d0#\xea\xc1\x18\xa8\x9c\xe1`&gt;\xa5\x1f\xf6Y\xb5\x81.\x06\xa6\x93\x86\x87\xa7g\xec\xed-\xb0\x9d\xe6|)\x85M\x8c\x81\x94\nUUq\xfd\xfau\xc9\xbf\x9e\xf2\xf1\xcc\x18\x16\xc0W\xbe\xfce\xfe\xde\xf7}\x1fgg\'T\xae\xc6ZK?\xf4\x98iCe\x14\x95\x93\x8ex\xca\x1ae%\xc4y\xe3pZK\xc5g\xc71K\xce\x902\xb6\x91&lt;\x8a\x921\xdaJ\x93TIRo\xb4C\x1b\x8b\xd2\x9a\x94\xb3$\xf3E\xbc\x9b\xd2\xbbD\xbf\x8c\xa8\xce"\xdf\x1bgw\n\x83r\xa0\x8ce}qA\xd7\t&gt;\xcb\x19\xcb\x10\x06(E\xfab\xa9H\x88\xd4\x90F\x83SQ1\xc4A\n\x87$\x18y\xe7\x9c\x8c\x88\x8a$\xe39f@zjuUq\xbem\xa9*\xcfl:a\xd3\xf6\xdc\xbf\xff\x00c\x0c\xc6h\xac\x93\xa5\xd9&gt;\xf6(\x05_\xfe\xf2\x97\xd8n\xb7O}\xb4\xf3\xcc\x18V\xdb\xb6|\xff?\xfa~\xbe\xfe\xb5\xaf\x91SBU\xe0\xbda\x7f:eo\xd2`\x9d\x93\xfcG\x813Fn\xccX\xee\xcb\xc2h&amp;\xe7\x8c\x1f\x17"v=\x1c\xef=\xa6\xb2X\xeb(\x08\x80n\xe7\x95\n\x90Rd\x18Z\xb46h\xa5I!\xa3SFi\x85\xf7;\xc8\x8d\x86\x9c\xc9\x80u\x0e\x85"\x97\x84\x8d\x11\xe7\x1d!\xf4\x94\xa2d$\xa4\x0c\x99LV\x85\x92\n%\x03\x1a\xb4\x82!\x8e\x1dz \xe4 \xe3 k\xa5\x99k-$-\x95\xa2*\x94\xa2h\xea\x9a\xba\x1e\xa8\x9c\xe7l\xb9b6\x9f\xb1\xe9{\xba\xa1\x17&gt;\x8a(@\x07A\xa6\xcaR\x86\x1b{sO\xfbx\xeagP\x8a&lt;\xb5?\xf6\xa3?\xca_\xff\xab\x7f\x95\x18\x07|\xe5\x99\x8cOhe4\xd6Z\x86!\xa0\xb5\xc1Z\xa9\xee\xacb\xc4=\t\xe4\xb7\xf6\x15u\xd3\xc8\x85U\xe2\xc1\xb4\xd6(\xa3\xc9)Iu\xa6-N;\x9cv\x18\xeb\xb0\xcea\xb5\xc1\xfb\x06e4(\xd0Z\xa3\xb54Q\x8b\xd6\x14c(JQ\xbcCiM.YF89S\xb2\x14\x04\xb6\xae\xb0\x8d\xc3M&lt;\xbe\x91U\xad\x9c\xc6\xbe\x1a\x99\xd4\'\xf2\x98\xc4kk\x18RO\x08\x039\x17\x88\x11\xb2B\xa9\x8c\xb5\x86R\x14Z\x15*\xaf\x05\x89a+\x16\xb3=\xbcs\x9c_,\x891\xe3\xc7u\xb0R\x905\xb5\xae%\x8d\x0f\xd6\xaf|\xe9\xcb\x9c\x9d\x9d=\xed\xdb\xfa\xf4\r\x0b\xe0\xfe\xdd{\xfc\x8d\xbf\xf6W9??e&gt;\x9b\xe2\x8d\xc6;\xe93M\x9aF:\xefJr)o-\xe4BL\x92\\W\xbe\xc2h\x83\xb7\x96\x14\x13\x19(h\xc9m\x92\xb4$(\x90\xb2\xb4\x02"\x91\xa2A\x8dF\x99\xb3x\x10\xad\x0c\xda\x1a\x94\x91\x90\xa7\xfch F\x93\x9c\xa5h\x8d\xb2\x06SWh\xef\x881\x00\xe2\x95\x9c\xb3Xk0\xc6J_Ji\xcc\xae\x7f\x95\x91\xed\xe9\\\x04\x9e\xdcw\xc4\x94\x08C\xa0\x8f=(MH\x81\xa1\x93\x11\x8f\xb7\xe29\xad\xb6\x840\x10\xc3@\xdbw8\xef1\xc6\t\x93\x8d\xf58\xe7\xa8\xaa\n=^\x03\xf1\xb0\x9e{\xf7\xee\xf1\xe6\x9bo&gt;\xed[\xfal\x84\xc2;w\xde\xe6\x8d\xd7_\xc5Z\x01\xd1\r}\x0f\xd3\t\xe4L\xe5*J\x0e\x98\xb1\xe1\x9dr\xc2\x19\x8b\xd1\nm\xcc\xd8\xf9~\xb4T\x90R&amp;\xea\x84C\xb6Yr)\x90$_I9\x92\x92\xf4\x90r\x9fpNnH\x8a\x19\xa5\xa4u\xa0\x94\x14\x06:*\xd0\xb2|\x8aR\x92\xaa\xc9\x1ba\x8c\xa5jjR\x88\x0c\xdb\x81\xd8F1\xf6\x9c)I\xa1\x8d&amp;\x17MII\xb0\xf8\xa5@\x96\xf7\x081RbAe\xa4\x89j5\xc6Y\x94\xd5\xf4m\x87q\x06\xa34N\x8b\xd7+)\xe2\x8d"\x1a\x8dV\x850\x0c\x00x\xe7\xd1F\x13M\xc4\x18\t\xf5\x93\xc9\x84\xcdz\xcdj\xb9z\xda\xb7\xf4\xe9\x1a\xd6\x8en\xf1\xd5W\xbe\xce\xbd\xfb\x0f\xc89_.&lt;8\xe7d\xef/\x0eh]\xd0F\x9a\x88\xc6\x9aq\xbe\'\xd5a.\x19g,EI\xaeQy+#\x15dxL)\xa4\x18\t\x05\x94\xd78#\x9e\xcdhCQ\x11e=1\x071\xd01\xc9\xcf1\xa3L\x86\xa2PJ\xa3\x8a\x8cr\x8a\x92\xc14EX\xfcb\x0cxW\xd1\x96-1DbI\xa4\x9c\x05m\x9a\n\x18@K\x97\x9f\x08:\xcbh&amp;\x95L\x1c\x02\xce8\x941(U\x04\xe6\x93\x03yH\x84\x18Q\xdaR\xd5\x9e|Q\xb0\xd6\xb0\xdd\xaee\x85,\x0c\x97\x8b\x18%g\x9cu\xf4\xa1c&gt;\x9b\xb3\xde\xac%\xb5\xc8\xf9_\xe6\xb6\xbc\xff\rK)E\x08\x81\x9f\xfb\xb9\x9fg\xb9Z\xb1\xbaXJ\xee\x90\xc5k\xec\xaa\xab\x94\x03(A\r\xec\xca\x7f\xb2\xb4\x02\xac\xb1\xc8\xda\x8d`\xae\x14\n\xad\x95\x84\xc1\x10F\x08\x8a,"T\xbeBg\xd9fFgBJ8\x9d0Y\x03\x8a&lt;zD\x933J%\xacs\xe3k\n\xde=\xc5\x81\x94\xe2\xd8\xe8\x8cP2}\x1cd\x8d+Ib^\x92\x8cz\x94\x15\x02\x91\x123*C\x89\x99X"!%\xc8\x9aT\n\xe4\x84\xcf\x1am \x12\xc5h\x9d\xc1(C\xc9\x11U2)E\xd4\xb8\xa4\x9bS\xc6\x19MA\xd1\x0f\x03\xde\xd9\xf1\xfb\x85\x87\x0fO)\xc0l6\xc3\x18\xf3\xb4\xed\xea\xe9\xe6X\xa5\x14NON\xf8\xf2\x97~\x85!\x0c\xc4\x14\x19\xfa^r\x92\x94)\x14I\xa4\xadE\x15\x81\xb3H\xb2\x1fG[\x92\x1c)\xc6H\xc9E\xf0Q\x14bN\x82BHy4@0F\x93\x86@\xbbi\x89C$\xe5\xb1\xb9\x19\x03\xb9DI\xac\xd1\x18\xa5\ti\xa0\x1d\xb6\xb4\xad4\x1e\x87\xbec\xb3Z\xd2m7t\x9b\ra\xe8GO\x98\x08]$\xc7HQEx\x1b\xb2x\xb9\\\x92T}Z\xd1\x0f\x81.\x88Q\x95\x1c\x19R\'\xe7\xa4\rECV\xa0\xb3A+G\xea\x03\x90qV3\x9dL\xc89\xd1\xb6R\xb5n7\x9b1_\xcbh\x051F\xe9\xdfU\xd5eo\xaem[~\xf2\'\x7f\xf2\x92\xac\xf7_K\xc3\x02\xb8\x7f\xff&gt;\xf7\xee\xdf\'\x0c\x03\xce\n\xa2@k\xc50\x0ch\x059\x17\xb42x\xef\xd0\xda\n\xa9FN(\xeb\xa4\xd9i\xb4\xcc\x01k\x8f\xab+\x9cu\xcc\xa63&amp;\x93\t\xae\x96m\x1ac,\xda\x89W\xf2\x13A6\xe41\xe7Q\xb9\x10\x8b\x84\xd4X2\x81\x88Q\xe3|\xd2U\xe4\x18\xc7D]\xc2\x8b\x1d\x8b\x87\xbe\xef\xe9\xda\x9ev\xb3e\xe8\x039H\xeb\xa3\xa8B\xca\t\xa5\x0c%\'\x94VXg\xc7\rf\x81W\x97\x94\xb1\xca\xc8\xfb+\x85V\nk!\x95\x9eR"\x95\xb3\xd4\xd6\xa1Uf\xda4\x14eh\xa6S\xc9\xcfJ!\x8c}\x86\x98\x92&lt;\x90a\x90\x07P\x0b\n\xe3o\xff\xed\xbf\xcd\xd7\xbf\xfe\xf5\xa7z_\x9f\xaaa)\xa5\xb8\x7f\xff&gt;)%j_\x91S\xba\xd2\x90TP\xc0:\x83\x1e\x93^\xad5\x95\x9f\xe0}\x8ds\x15\xc6z\xac\x15h\x8b\xda\xedT)I\x9e\x8d5\x8f\xd6\xd1\xc7\x1b\xa8\x94B!\x1ePks\xb9La\x8d\x13Dh\x91\xa5-\xab4z\x84\xc5X\xe7\xa9\xaa\x86f2\xa3\xaa\x1b\x9c\x17cm\x9aFBN\xe1\x91\x87\x1d\xc3\xb3\xabd\x8fPk\x05\x1a\x9c\xd3X\xa7p\xde\xa0\xb5AY\x83v\x0e\xed,\x19Eb\xc0\xfb\nc*b\xc9\xa4\\Pz&lt;\xb7\xba\xa6\xeb{\xbc\xf3x\xef\xc9EP\x14\x05E\xed\x1d\xfb\x8b\xd9\xb8\x0b\xe9\xc6\xf7\xd4&lt;\xbc\xff\x80\xff\xfeo\xfcM\xd6\xeb\xf5S\xf3ZO\xd7c\x95"\xcdP\x14\xcey\xa6\xd3)\xc6\x18Y7\xd7\x1a7\xd2\xfehc\xd1HcSi\xa8\xebf,\xef\xc7\x91\x8c5\xb27\xa85\xda\x8e\x00\xbfqt\xa3\xb5\xbe\xc4\xb5\xbb\xdaI\xafj4\xb0\x02\x92\xe8\x8e\\\xa1\x99\xcc\x10\x03!GrL\xc4a \xa5 \xe3\x19y\x14\xb0\xce\xe3*\xa1\xa0\xf4\xb5\xc3\xd7\x8e\xba\xf64\xfb\r\xce;\\e\xf0\xb5\xa3i*\xeaIM\xed\xbc$\xefZ\x93A\xb0\xf5V\xa3lA\xd9\x82\xf5\x0e\xab\x1a\x86a\xc0\x18%\t\xbd*2)\xd0\ng\x0c\x95\xd5\xa40\xb07\x9f\xa1\x15\xcc\'5\xfb\xf3)\x94BH\x89I\xd30m\x04\xc3\xb5\x98\xcd\xb0\xd6\xf0\xb7\xfe\xf6\xdf\xe1W\xbe\xf8EA\xbb&gt;\x85\xe3\xe9V\x85\x08\xa6Jk\xc5t&gt;\x83\x02\xcb\xe5\x05\n\x18\xfa@AS\x8a"\xe5\x806\x131,\xf4e\xf7\xdcYKQ\xd2#\xdaU_Y\x8d\xaf\xeb,^\xc9k\xa7\x14\x85\x9f\xcazi:*\xc1Y\rI\x08?\x94\x12$B)\n\x955*\x172\x19g\x8d`\xddI\x02c\xd6ZBc\x90\x01\xb3\xaf*\xfa\x10(}\x8f\xa9%\x84+\xad\xc5\x10\x8d\xc2\x84\x846\x9a\x12\n\x83\x8d\xa4M&amp;\xaa\x88\xb5\x0e\x94A%\x8d\xa9-Vk\xda\xae\'\xe7\x88\xd2\x05\xaf\x0c\xebmOe\x1c\xcd\x08\xf7\x19\xba\x81\xe7\xae_c\xdb\xf5\xac7[\xbcs\xd4uC\x0c\x81\x8ba\x89R0\x9dN9&lt;\xbe!S\x86\x92\xf9+\xff\xdd_\xe1#Oi\x99\xf5\xa9\xf7\xb1n\xdc|\x0e\xef=\xeb\xbbw0\xc6\xe2\x9d\'\xa7$\xdeh\x0co\xd6:\xdc\x98\x9c*-\x1d\xf2T")*\x94\x15\xf8p\xde5&amp;G\xa4\xc3\xd0\xf58/\xe3\x17\xa3-\xd6\x1b\xf9{\x9c\xa1i\xa5\xa9\xaca\xe8[|U\x8d\x03d\xc9\x89\xd0\x9a\x94#j,\xe7\xaf\x8a\x00h#\xdd|\x93\xad\x8cuj\x8b\xd2H\x07\xdeY\xc9\xb7\n\xa4^\xfaKJg0\x055\x881\x92,\xd6\x08\xee+\xa9L\x89\x89b \xc7@J\x91\x983]I\x0c!\xd3L&amp;\xcc&amp;\xb5\xb0\tn[\xbcQ&lt;w\xf3\x1a\x0f\x1e\x9e\n\x93\xf3H\x14g\xb4f2\x9d1\x9d\xef\xa3\xada\xbb\xe9\x04\x85\xfa\x14\xb9L\x9f\xbaa\xed\xed\xed1\x9dN\xc7\xd0e\xa4|.\x19k+\x94\x91\x11\x08)\x11\xd30\x8eR\x18\x19\xf2\xc6D\xf9\xca\xb2D,\x19\xaf$\xaf\xa9\x9c ,\x9ds\xd2\xa32`\xbd\xac[\x8dI\x17*\x06\xeaj2\x0e\xaa\xa5M\x80\x96\xf6D5.\x94\x1a\xe3\t\x95\xa1d\xa1x\xd4)bS\x1aW\xfc\x03(\xf0\x13\x8f\xc1\x90uF+\x83\xd1PFf\x19\x90\xfd\xc82\xbe\xae2\x86\xac$\xf4\x9a,c\xa96v\xa4"c\x9f\xae\x0fl\x87\x9e\xa1\x18J\xd7\xe3\x8cfo6a\xd9ni\xaa\x1amd;{\xbb\xdd\xd2\x8e\x0c\xcc\xce5\x18ki\xbb-)\x05\xb6\x9bN\xaa\xca\xd9\x9c\xa1\x1f\x9e\n|\xe6\xa9\'\xef\xd7\xaf_\xe7s\x9f\xfb\x06\x12\xb0Zo\x891\xe2\x9c\xa7(%a(\x0b!\xac\xd2\x9am?\xb0\xea\x06\xce\x96k\xfa!2\xa4@\x18\x042\x92R"\xc5HL\x858\xc4q\xb4#FWt\xc1`PE\xd0\r)G\xca\x88_\x97q\x91$\xbd\xc6X\xdcn\xc7\xd0:\x946D\xa3Q\xd2}%[C\xb1\x96\xa85m\xe8\x08Av\x0bS\xca\x84\x12%o3\x96"q\x19\xa3\x05\xb1 3C1.5\xe2\xc7\x94\x06\xed\xed\xd8\xe57\x10\x15!&amp;6}G\x8c\x05\x95\x031\x0eXS\xd8\x9b\xcd\xd8\x9b-\x88)\x0bs\xf3\xd1!\x07\xfb\xfb\xec\xef\xef3\x9f\xcf\xb1\xd6\x12\x86\x818\xee\x1c\xe6$\xed\x93\x8b\x8b\x0b^y\xe5\x95\xa7\x92g=u\x8fU\xd55\x7f\xe4\x8f\xfd1~\xfc\xf3?)\xc9fR\xf8\xca\x8fh\x03\x81rf"!)\xee\x9d\x9ecG\x9c\xd5z\xb3\xa5\x9e8f\xf5\x94E\xcaLSM\x90)2\xda\x18l\x8eXk\x05\x12\xa3@[i\x8c\xc6\xa1\x97\xc6A\x91nw\x1a\x8d\xd3i/\xe5\xfa\xd8\xe2(9\x811\x98\x9cIZ\xa1C\x80\x14\xc7\xbeY\xcf\xaa\x1fP\x01R\x1a\xc4(+KI\x89b=\xe4HI\x99\x94\x15YCI U\x03\x94\x08\xbe\xb20\x1a]*\x92\xcf%\x1d\xc9\xc3\x882-\x91\x94\x0c)\xb5T\x93=\xe6\xf39\x07!s\xff\xec\x9c\xcdvCA\x8a\x14_\xd5L\x9aF\xe6\x8e\xc3@\xd7\xb6\x0c\xdb\x01\xe7+\xae]\xbb\xc6\x8f\xfc\xc8\x0f\xf3\xd2K/\xf1\x91\x8f|\x98\xa3\xe3\xe3\xdfT\xd4\xc3S7,\x80\x8f~\xecc\xfc\xfe\xdf\xff\xfb\xf9\xcaW\xbeJ\x0c=&amp;\x0e\xd0\xd4##\x8c\x91\x90Q\x8a\xec\xdf\x15h\xfb\x9e\xd3\xbeG\x9di&amp;\xf5\x9a\xf9t\xc3dRs\xbc\x98s&gt;\x9bp4\x9fq\x18\'L\x9b\t\xa5\x14\x9c\x93q\x8c1V\x16Xs!\xa5\xc2\x10\x86q.\xe7))3\xe4\x80*\xd0\x86\x8e\xd2#\xe1\xd98R\x06m\x14]\xd7S\xb4\xa1\xef\x07\xe20\x10\xa3,\xbd.7[\xf4:\xe3\xad\xc1\x99\xb1\xff6\x92\xa69\xab\xe9\x93(_\x84\x10\xe4a1\xd2\x15M1\x8e\xabi\x06\xa5\x1cC\xd9\xa2\x8c\xc6iG\xbf\xde\x92\x8c\xc1\x93\x98-\xf6\xd8G\x13\x94\xa1\xe9\x04\xf7\xde?&lt;!\xc5\x80\xf7\x0b\x81t\x0f\x83\x00\x10+\xcf\xf1\xb5\x1b\xbc\xfd\xd6\x1b\x1c\x1c\x1e\xf2O\xfe\xc9\x0f\xd1\xf7=\xff\xc1\x9f\xfc\x13\x1c\x1f\x1f\xff\xa6\x85\xc5\xa7nXJ\x89\x90\xd2\x1f\xf9#\x7f\x94_\xf8\x85_\xe6\xfb\xbf\xff\x1f\x08\xae\xc8h\x9c\xd6\x0c\xfd@c4%fjWSt!$\xe8\x12\xb4\xdb-\xf7O\xce\xd1\xd62\x9f\xcdx\xee\xe8\x90\xfd\xf9\x94\xd5a\xcbj;\xe3h/R\x19\xcb\xa4r\xb8\x14\x1f\xf5\xb6\x90\xa6d\x0c\x81\xa1HC\xb3dh\xc3@;D\xfa^:\xe3\x19\xc5\xc9\xb6e\xb3\xed\xa9\x9b\x86\x9c\x83\xec2j#|\xa0)\x11s"\xc4\x04Y\xa09\nEU{\x16M\x85\xd2\xd0\x8d4Hm\x1f\xe9Cb6\xa9\xc8\tb\x1c\x88y\xc7\x97\xa5`H2\xfb\x1c\x12\xa1$\x94\xd6T\xde\xcb\xcf\x96\x8eiS\xb3\\\xb78kXo[\x0e\xf7\x0f\xe8\xba\x8e\xaf\x7f\xfd\xeb\x97\xec\x80P\xe8\xc3\xc0\xb6}\x1d\xef\x0c\xcf=\xf7\x1co\xbd\xf9:?\xfb3\x9e\xbbw\xde\xe2?\xfbs\x7f\x8e\xc9d\xf2\x9bb\\O\xdd\xb0@\xbc\xd1s\xb7n\xf1\'\xff\x83?\xc1W\xbf\xfc\x05\xca \xebO9\x0e\xf4)\xa1\xbd#e\x8d.2\x84\xed\x93\x0cjc\x88\xc2\x82\xd7\xb6\xc4\x94\xe8\xfb\x81\xeb\x87\x07\xf4)\x12r&amp;\x96\xc2\xfe\xa4!\x94\x1a\x17\r\xb5\xb18\xa7\x05\xda\xa2\x15(G\x08\x03\xfd\x101\xd6\xb3\xed\x03\xdb!\x08=\xf7\x10Yu\x1do&gt;&lt;\xa3\xed\x07J\x16\xb2\x0e5\x0e\xc0\xb5\x82\xbd\xc5L\x1a\xa8\xde\xcbj?\x19\xad4\xab\xf3%\x9b\xd6\xb3\x98\xd48\'\x9b8}\xec\xd1H\x11\x90U"\xc4\x01\x8a\xc58\xc5\x90\x02C\xc9t}/\xa0@\x0c\x95\xb6(W\x0be%PB`\xdeTl\x87\xc0\xb4\xaeX.W\xec\xed\xed\t\x04\'\xc80&lt;!\xeb\xfe1&amp;\xae\xdd\xb8\xc1o\xfbm\xdf\xc1|\xb1\xe0\xa7\x7f\xea\xf3\xdc\xbbwW6\x88~\x93\x8eg\xc2\xb0v\xc9\xf37|\xe37\xf0m\x9f\xfb,\xaf|\xe9\x17QZ\xa6\xf7!\x06iF:\x83)\x82\xeal\xac&amp;\xc6\xc4\xd2hH\xe2q\xb6\xdb-\xa1\x1fH}K\xdf\xb7\xa4!\x10\x8e21\x17\xe6%1\xf5\x16\xe5\x1b\x86\xa4\x91,\r\x9c\xceR\xde\xa7@e\x8b4GSbH\x85\xd3m\xc7\xc5zK\x9f\n\'\x17K\xce\xd7k\xb6\x9b\rJ\x89\xb7\xb2\xd6r\xb2\xdc\xb0\xbf7gRU\xcc\xea\x8af\\\x8c\xedC`\xd3\xf7\\\xb4\x1d\xfb\xd3\x86\xc6Y\x8c\xb6\xa4\x12\x889\x92U\xa2`\xc8*\xa1\x92\xa2\x84BI\xb2\x0f\x99\xb5\xecUb,\xd5tNV\x86\xd2\x07B\x1c\xf0\xd6\xc8\x1c4\x1b\xac\xb3&lt;8;\xc3[w)V\xa0]\x852b\xac\x17\xe7K\xbe\xef\xef\xff=&gt;\xf0\xd2\x07\xf9\xc6o\xfaf\xfe\xe8\x1f\xfd\xc3\x97Z\x8a\xff\xda\x18\xd6\xeep\xceq\xb0?\xe7|\xb1\xa0\x0f\xa3\x8c\xdb\xe5\x85P4\x8dg\xdaT,fs\x8c\x93\xae\xfc\xc5j\xc3+o\xbe\xc1\xc9\xe99%%\xfa\xa1g\xb9\\\x01\x05\xad\n\xde\xc8\xca\xbd-`r\x8fA1d\xa1!\xea\x8d\xc1jCL\x89v\xd8\x90\x95f\x1b\x06.V\x1b\xce\xd7\x1b\xd6}\xcfv\xb3\xa1\x1f\x02\xa0\xe9R\xa2o\xb7\xb2Wh4\xf3f\xca\xa4rx\xad\xd0\xb3\t\xa9(\x8a\x12\xe4\x816R-n\x8c!\xa7D7lGl\x97T\x99E)rL$cI\xc8`]\x16e\x85\xec6u\x01?I\xec]\xbfA\x1b#\xe9\xe4!e\x08\xcc\xad\xc1:O\xbd\\\xcb\xb6sJ\x82\xd1r\x85\xf5vM3\x99b\xb4\xf4\xde\xee\xbe\xfd\x16\xf3\xd9\x94o\xfc\xc6\xcf\xf1\x81Q\x82\xf87\xebx\xa6\x0c\xab\x99L\xb8y\xeb6_\xff\xe5_\x92}@\xa5\x18\x86\x88\xf1\x9a\xba\xd28\xe7h\x9a\x86I\xd30\x9b4hk8^\xcc9Z\xcc\xf8\xea\x1bop\xf7\xde\x03\xfa\xb6e\xe8z\xb6\xc6\xf0\xc0\xad(\x18\x8a\xce8\xbbO\xca\x85\xd4\xf7xc\xa9\xbc\x17\xa2\xb2\xf1}r\x81M\xd7\xb3\xee;\xd6\xdb\x96\xae\xeb\xe8\xb7\xed8\x0c\xd7X\xebh\xaa\x06\xa7,~\x84M\xfb\xaabo\x7f\x0f\rl6[J\x11\xf5\tkd\xde\xd94\x13\xd0F\xda$[Yy\x9fV\x9a\xca\n\xfc\xb9\x8c\xcc7*\x03e\xd4\xa4\xceP\xa2\xe0\xd4\xe2\xd0\xd1\x0f=~2\xc5Z\xc7\xb6\xebd\xb96f&amp;\x95\xc7h\xcd\xf9j\x05)q&lt;k\x98[\xcdE\xbba\xd0\x8e\x97^x\x89\xcf|\xe6S\xfc\xae\xdf\xf5\xbb\xf9\x9e\xef\xfd^\x19\x9e\xff\xebhXJ)\xac\xb5|\xee\x9b\xbf\x95\x1f\xfd\x81\x7f\x88\xd5\x1e\xeb\x12\xaa\xef/)!U)\xa4!\xb0Z\xaf\xc8\xb9\xa3\xf2\x8e\xcaVL\x9c\xe6\x85\x1b\xc7TZ\xf3\xd6\x9d;\xb4\xdb\x96\xcdf-#\x92\x14\x99V\x9a\xb9\x12\x16\xe4\x90\x13\xb3\xc9TFB)Iy?\xf2\xac\xaf\xb6[\xd6]\xcbf\xdb\xb2\xdel\xd9\xb6[\t3!\xa0\x94\xe3\xf8\xf0\x88\x83\x83=\xae\x1d\xec\xd345\xdaUX\n)\x88\xe7\xe8\xba\x16AK\x95\x11\x8f\x1e\xe8\x86\x8e0\x046mG\x8c\x91\xa1\t\x1c.f\xb8\xe2P:\x92\x91\x19e\xa6\xc8\xb2\xab.xo\x89\xb9\x90bO\xbf\xd9\x806$d\xae:\xdd[@\x0882\xdehn,\xa6|\xd3\x87_\xe0#7\x0f\xc9E\xf3\xfa\xc99\xf7{\xc5\'\xbf\xe9\xdb\xf8\x1d\xdf\xfb\xbd|\xc7w|\'u]\xff\xa6\xdf\xcfg\xc6\xb0v\xc7\xf3/}\x88\xd9\xde!\xab\xf3SA\x02h\x19\xeb\xb4]Kg5\xd6(\xc1i\xe5@\xaa,\xb9\x8a\x0c]d\xb9\\\x91bb\xdaT\x84\xa1\xa7\x0b\x11\xdav\xac\xd6\x12i\x18\xd8\x9f\xcf\xa8\xbcc\x12e\x0b(\x87H\x9b\xb2\xa0\x0cra\x88\x91\xe5z\xc5z\xbda\xb3\xdd0t"\xdad\\\xc5s\xd7\x8f\xb9v\xe3\x06\x07\x8b\x05\xd3\xba\xc2zK\xc1\xa0\x95\x80\xf0B\xd7\xd2XE?D\xfa\x18(1\xd1\xc7 \x8a\x15C$\xc6A\x16*(L+\x8f\x9f\xd8\x11\x11\x91\xc8#\xbf\x96\xd6\x8a\x1c\x95\xd0P*H(\x11\x7fj;*\xe7X\x86\xc8\xb0Zc(\x1cV\x9a\xdf\xf9\xc9\x0f\xf1\x91\xe7\x9fc\xd1T\xb4\x9b-m\xe8y\xf1\xda\x1e\x1f&gt;\xb8\xc5\xbf\xf5G\xff0\x1f\xff\xf4g\x9f\x9aT\xca3eXJ)\xea\xa6&amp;Ph\xbbN\xe6z\xb9\x90\xe2\x80i&amp;\xa4\x9c\xd9\xac7\x9c\x8eR!\x99\x8c\xf7\xb2\x7f\x18b\xa2\x1d"]\x17G\xf4\x8c\xa2\x0b\x89\x98z\xfapJ\x8e\x99\x84fo6eV\xc9\xe6r\x01\x9c\x17\xa8p\x8a\x91\x10\x03\x9b\xcd\x96\xd5j\xcd\x10\xfa\xb1\xef\xa49::f:\xad\x88\xed9\x1b\x1d\xb1\xb1\xa1\xf8J\xe0\xcaZ\x08,\xbdV\x14\xe7\x88)c\x8b\xa1\x18K?v\xe6c\x08\xf4a\xa0d\xb0Z\x8ce\x873\xcb%`\x94A\x93d\x8b\xa8v\xac\xba\r1\x15l5e\xba\xbfO\xdb\x8d]~\r:\x07n-f\x1c=w\xc4\xf1\xe1&gt;\xfd\xbae\xd5\xb5\xac\x86\x81\xb7\xee\xde\xc7U\x8ek{\x81\xd9\xa4y\xaa\xe2N\xcf\x94a\x01\xe3\xae_b\xb3m\x999\x871\x86\x94-\xdeZN/\x96\xdc?9a\x88Y\xb6\x95\x8df6\x9d\xf3\xdc\x8d\xeb\xdc|\xfe%\xa6\x93\x8a\xd5z\xcd\xe9\xdbo\xf1\xf0\xce\x1dr\n\xb4!\xb1\xea\x06\xfa\x90\x99N\x1b&amp;\x93F\xf0\xef(\xac6\xe3,R \x11\xeb\xb6c\xb5\xde\x88\xbco\x8a8\xa5\x99\xcd\xe7\xacV+\xceN\x1e\x92C\x8f6\x8a\xc5|\xc1\xd1\xd1!{\xb3\x05M]\x01\xc2~\xd3\xf5\x03Z\xcb\xbc3\xa52z"0\xd6bSD9+\x8b\xb0\xe3^b\xce\x1a\xefjb\x0c#\x13\xe0\xc8\x14X\x94\xac\x82\xe5\xccv%j\xaem\xbb\x85\xae\xe3\xf0\xf0\x98\x8f\x7f\xf0\x16\x13S\xb1\\\xaf\x19b\xe0\xb5;o\xf3\xcb\xbf\xfau\xce\xd6\x1d\xd6j\xf6\x0e\xaf\xb3]-\xe1\xdf\xd0\x18\xc9\xb1[\x81\xdf\xdf\xdf\xe7\xe1\xdbwd\xe8k\xc6\x0b\xbcY\xf3\xe0\xf4\x9c\xf3\xad\x90\x8d\x1dL\xe7\xac\x87\x9e\xb7\xef\x9f\xb2\xec"7&gt;\xf82?\xf53?\xc7\xed\x1b\x87\x1c\xec\x1fP\x1bxp\xff&gt;\xa7\xab-1\xc1\xe9f\xcb\xc3\x8b\x15/\x7f\xf8\x83\xcc\x1a\xcfl2aVyrQ\xb4*\xd0\x97\xccz\xbb\xa5\xeb{\xe9\xac\xa7\xc8d1\xa7\x1fzB\x8cT\xd5\x84f\xb1@\x19I\xd4\x87\xd3\x0b\x1e\x9c\xad\x08\xb9p0\x9brmo\xca\xa4\x99\x92J\xa1\xef;\x86\x94\x88!\x12\x82$\xeduS\xd3\xd4\x15\xb5\xb58\xa3\xd1\xca\x8a\xcf\xcd"j @D-x\x7fk\x18b\x94\x15\xb7\\\xc8J\xd3\xb7[\xae\xcdg|\xf8\xc5\x9bTu\xc5j\xb9\xe5\xe4\xf4\x8c\xbb\xa7\'\xbc\xfa\xf6\x1d\x9a\xa6b\xdb\x07\xbaa`\xbd\xdd\x90\x86\xfe\xa9\xde\xcbg\xca\xb0vG\xe5+&amp;MM\xd5\xd4\x18\xadi7\x1</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9czTXtRaw profile type xmp\x00\x00H\x89\x95VK\xb2\xa30\x0c\xdc\xeb\x14\xef\x08\xb6dK\xf88\x14\x98\xddT\xcdr\x8e\xffZ\x86\x04\x12\xbe\x13\n\x13\x83,\xb5\xda-\x01\xfd\xfb\xf3\x97~\xf0\x8b,L2X\'\xbdu:Z\xd0Q\xb3%\x8d\x1c|\xae\x83V\x13\x7f&amp;#\x9bFM:)k\x96~\xbe\xff\xb6\x9e\xd8\xa4R\xe89|\x1ep\xcdX\xa4\xd2gN)\xe9\x97\xdb\xf9\x99\xbb\xee,\xe1\x08\xd2\xc3\xd5D\xd6~\\\rV\\u\x82\xa1\xf1$Q\x8a\x1f\xf8\x17\x841\x02&lt;\x8f\xb3\x13\\\xc5\n\xdc\x02\x8du&lt;z\x00\x16rX\xa1\xbf\xc2\x05P\xd9D\x05\xf3b\x01\xcb\x0bR\xac\xc0\xb9&lt;G\xd2\xac@\x84&lt;\x1d(\xdb\xde\xd96%,\x92}Bp\x9c\xe1p\xe0J\xafd\xdc\x10c\xc6\xc2\xec4:t@F\x92\\e!\xf4\x08w\x0b\xd0["\xc0M\xbe\xf8\xd8\xec\x9d^\xd4\x01\xc8/l\x08\xa0\x07-\xaf4\xda,jU\xf34\x1a\x95`H\x15\xb4fw\xe5\xb8Rn6\xdcr\x89Xb8\x05\xa9qpc\x8c\x8aG\xd0\n\x12\n&lt;"\x16c\xc7\x06\x9e\xde\xa4"\xe01&amp;\xb7\xa1{\xe83\x7f\xce\xc3\x15\r\xb4\x8dy\xbc\xd1\xcf\xe4Aw\xfax*\x0fJ\xb1\xe9\x02\xce\x94\xf7:i\xaa\xad\xba\xb1q\xc7K\xc8\xaa\x82\xeb\x08+\xd4!\xbd\xb5\x12\xce\xb5\xf2\x11\xcc\xf9\x84\xc2\xbe-\xe9\xabL\x05\xf9\xc6kM-rYf\xe8\x19\x11y\x83\xa3\x9c\x93\x81#\xec\x05\x12\xcb\xdc\xe8\x9e\x9a\xf0\xe1\xf4!F\xf1\xed\xcf\xce\x00Fl~S\x0e\xa3\x0b\x8c\xb8\x16\x8cQ\xc4wu\xbfl\xbbj\x0eD\x97\x91\xb2\x81\xfaTZ\x10\x93\x02\xc9&amp;I\xd2y{ka\xbc\xd5@\xfd\xb8g\x84\x98\xd0\xb1F\xdc\xee\xbc\xd7@zI2\xdcd\xa4\x06\x1e$\x82\x89\x02\x9c{d\x9b0\xa1\xa7\xdb\xfc\xe1}\xc1\x94\xe1\xceO\xc5X\x10\x18A\x1c\'f\x9d\xcc\xca&gt;[zOs\xf6\xdat\xec\x1d\xbd\xf7\xac\x1e\xc1_\rW\xbb\xe3z\xa4g\xb5}\xaf2\xda%v\xa8\xdbo\x97\xfb\xf2\xa6\xe7\xf5}]\xde\xf4\xbc\xbe-\x1c\xbf\xd1\xe6\xc2\xa6\xf5\r\xbaV\xf3\xbcd)f9/\xe6\xc55\xe8\xb0L\x00\xday\xf7E/\xeeu\xf2\xee\xeb\xcd7\x15\xeb\r\xf3\xc6\xcb\xc6|\xb5\xfevLw$&gt;\xe5\x90\xee\xdf\xa1\xcf8\xa4\xd7\x97\xc8yw&lt;\xe0\xb0C\xed\x87\xcf\x86x\xfc52\xbb\xde6\x0c$\xef*\xc71\x80M\xf1w\x9f\xe1m\xd7hi\xd6tn\xfe\x7f\x92\xa4\x95\xce\xcb\xe2h_J\xa7V\xf8T\xa3\xcfo5\xe4\xfa\x0b~\x118zqe\xc8\x98\x00\x00~bIDATx\xda\xec\xfdw\xb8n\xd9U\xde\x89\xfe\xc6\x0c+|q\xef\x13+\xa8T*\x1de\t!\x92\xc9\xd9\x80\x1cp\x00l\x03\xedtm\xe36\x8e\\\xe3\xd4}o?\x97n\xd3\x0e84\x17cn;q\xdb`c\x8c\xb96\xc8`\x82\x08\xc2\xc8\x80$\x82\x10HXB*\xa5\xaa:q\xc7/\xac\xb5f\x1a\xfd\xc7\xdc%\x83\xe1\xb1\xb1\xaf\xeds\nz&lt;\xcf\xfe\xef\x84o\xaf\xf5~s\x8e\xf1\x8e1\xdeWTU\xf95\x1e\xff\xfe#\xc8)\x93r"\xc5\x08\x02\xd6Z\x9c\xf38\xe7\x00\x10\x91\xfb\xfd\x91\x1f\xf8p\xf7\xfb\x03\xdc\x8f\xf8\x85@\x1a\xf6{\xde\xfe\x8e\xb7\xf33o\xfdI\xde\xf1\xf6\x9f\xe3|\xbb\xe1\xd6\xed\xa7\x99B`\x9a&amp;\xba\xd6\x818\xfa\xf9\x82\xc7\x1e{\x1e\x9f\xfaI\x9f\xce\xc7}\xdc\xc7\xf3\xf0#\x8f|\x08`\xff\x17\xd0~i\xc8\xaf\x95\x13KU\xd1\xa2\x9c\x9c\x9e\xf0\xf3\xefz\x17?\xf2\xa3?\xc2\xbfy\xe3\x0f\xf3\x8e\x9f\xfd\x19\xce7\xa7\xcc\xdb\x0eM\tk\x1cj\n\x8ab\x9d\xc3{\x03\xc60\x9f-\xb1FH\t2\xc2\x8d\x1b/\xe2\xe3&gt;\xfe\x13\xf9\x84O\xfcDn\xdc\xb8\xc1\xe1\xe1\xa5\xff\x0bh\xbf ~U\x03\xeb\xd9_\xed\xe637y\xfd\xeb_\xcf\xf7\xbe\xfe{x\xebO\xfd\x14\xc7\xc7G\x88\x11\x9a\xc6\xe1\x11V\xb3\x9e1\x8e(\xca\xba\x9b\xd18\x0b\x08\xa9$\xa6\x92\x00\xa1\xb3\x9e\xd6Z\x86\x92\tI)\xc62\x9f\xcf\x99B`\xde\xcfx\xc5\xab^\xcd\xa7\x7f\xc6g\xf2i\x9f\xfe\x19\\\xbe|\xb9&gt;\xdc_\xc3\x00\xfbU\t\xacR\n\xb7o\xdd\xe2\x07\xbe\xff\x07\xf8\xe6o\xf9\'\xbc\xe5\xcdof\xb7\xddb\xad\xad/\xdb\x18\x9cs\x18\x03N\x84E\xd7\xd0\xf5\x1d)FZ\xe7Xx\x87m:\x90B\x88\x11\x01\x9c\xd4\x9fM\x9c\xb0\xcd\x8c\x92\x85)L\\\xb9v\x9d\xf3\xf3\x1dS\x98\x18\xa7\x89G\x1e{\x94O\xfd\xb4O\xe5\xb5\x9f\xf3\x9by\xf1K^\xca\xe1\xe1\xe1\xafI\x80\xfd\xaa\x02\x96\xaa\xf2\x96\xb7\xbc\x85o\xfc\x86o\xe0\xf5\xdf\xffz\x9ey\xfaiP\xc5\x19\x835\xe0\x8d\xa3\x18\xf0]G\xd1L\xce\x99\xbe\xe9\xe8\x9ca\xd68\xe6}\xcf\xbci\x89qb\x8a\x99\xa6w\xcc\xba9\xbb\xdd\x96R"\xeb\xc5\x9c\x10"S\x08\x80\'\x0b\xc4\xa2d5\xecw#9%\x06\x0f\x8b\xd9\x1c\x8d\x89\x87\xaf=\xc4g}\xf6g\xf3\xbb\xbe\xf0\x8by\xfe\x0b\x9e\xa8\x0f\xfc\xd7\x08\xc8~U\x00+\xe7\xcc\xbb\x7f\xfe\xe7\xf9\xdb_\xfb5\xfc\xb3o\xfdg\x0c\xe3H\xce\x05c\x0c\x8dst\xc6\x90\xb5\xe0\x9c#\x94\x88XK\xe3&lt;\xceZ\xbc\xf3t\xd6\xe1L\xc2\x1a\xa1\x11\x8bs\x8e\\2b\x0b)&amp;\xa4m\t1r0\xeb\xe9\x9b\x86\x1c\'\xf6\xdb\x01\xdb\xf5\xecc&amp;\x84\x82`\x18Sb\xa00\r#\xa8`\x8d\xe1\xd2j\xc5b\xde\xf1Y\x9f\xf3\x9b\xf8\xc2\xdf\xfd{y\xe2\xc6\r\xac\xb5\xf7\xfb\x91\xfdW\x8f\xe74\xb0T\x95\xcd\xf99\x7f\xf3o\xfcu\xbe\xe1\x1b\xfe\x0f\xa6q\xcf4E\xb2*b\x1d\x02\x080s\x9ez\x03\xd6\x97-N\xb0\x9aY-z\xd4:\x0c\x8eUc)%\x90\x92\x82u\xe4\x141N1\x08\x88P\x8c\xe0EX\xf8\x96F2\xfba\x8f\xf8\x16u\r\x9b\xf3=\xc5xb\x86\xcd\xc9\tc\x8c\x8cY\x11g\x11U\x0e\x16\x0bB\x9aX-\x0f\xf8\xac\xdf\xf8\xb9\xfc\x89/\xfb\xb2_TU\xfej\x8c\xe7,\xb0J)\xbc\xe3\xed\xef\xe0\xcb\xff\xf4\x9f\xe4\xc7\x7f\xfcMX\xb18\xebq\xde1\x85\x88k\x1aRJ\xf5\xa4*\x8a\x17\xf0\xd6\xd24\x9ev\xe6q1\xd1\xb7\r]\xd3\xa0\xbe\xc1\x8b\xb0\xee;\xee\x1e\x1da\xfb\x9e\xf5z\xc5\xe6\xec\x84R\x12M\xe7I9\xe2\xbdg\xde\xcc)a`;\xeeX\xccW\xc48aC\xe6L!\xe6\xc2f\xb3e\xbb\x99\xd8\xee3\x93\x08\xa6\x81\x99kq\xaeV\x97\xae\xed\x98/\x16\xfc\xbe\xdf\xf7\x07\xf8\xc2/\xfe\xef\xb8v\xed\xda\xafJ\x80=\'\x81\xa5\xaa\xbc\xeeu\xaf\xe3O\x7f\xf9\x97\xb19?\xc6\n\xe4\x0c\xc6\xd6j\xae\x14\xa51\x0e\xdf\x19\xc6\x18\xb1\x08&amp;$\x16mK?o\xc9\x9aY\xb6-F\x04)\x8auB\xd3x\x96\xdd\x9ca\x18\xd9\x87\x89\xd5\xb2\xc3#\xe4\x02j\x128OJ\x05+\x86\xd6\x1a"JI\x05\xab\x13\xf3\xd6\x93\x8d\x10Bf\x9a&amp;v\xdb\x81m\x14\x9e9\xde1i\xa6\x14e\xd6wH\xc9\xa8q\xac\x0f\x17\x0c\xc3\xc8\xa5\xcb\x0f\xf3\xe5\x7f\xf6\xcf\xf3y\x9f\xff\x05\xff\xae\xb0\xf8U\x12\xcf9`\x95R\xf8G\xdf\xf8\x8d\xfc\xb9?\xf7g\xe9\xe7\rW/\xaf\xd8\x1c\x9f\xb1\x1d\x03!eJ.\x88*\xad5\x88\x14\x96\xeb\x05\xc6\xb74\xa5\xd0\xa0\x18#\xf4\xfd\x9c\xd3\x93c\xe6\xb3\x9e\xb6m!G\xbc\x81+\xcb\x15\xe7\xfb\x81}\x8c\xe4\x9cx\xe8\xfa5\xa6q\x8b\xb5B1\x1e\x87%\x85\t\xeb\x0c1)\xd6:\xceN\x8f\xb9ri\xc5~\xb7\xa5\xe9\xe7\x90\x0bZ\n\xb9x\xdew\xeb\x88m\x8e\xe4\x9cI%_\xe4V\x96\xf5z\x85\xb1\x8e\xdbw\x8f\t\x9a\xf9\xad\xbf\xf5\xf3\xf9s\x7f\xee\xcf\xf3\xc2\x1b7~\xd5\x80\xeb9\x05,U\xe5\x1b\xbf\xf1\x1b\xf93\x7f\xe6O\x93R\xc2y\xb0R\xb0\xc5RT\x18s\xc2hb\xee\x1d\xadU\x9c4\xccVs\xe6\xab\x05\x9e\x82M\x89\x82\x12\xc6D\xa1\xd4k\xae\xe9)\xce"Fx\xd1\xf3\x1e\xe6|8\xe3\xe4d\x83N\x85+\x87\x07,W=E\x0b~1\xe7\xe6S\xef\xa7\xc3blC\xe7[\xc6} \x929\xdd\x9d\xd2\xf5\rE\r\xae\xeb\xd9\x9f\x9d\xb1\xb43B(l\xa6\x81"\x85Qa\xbfO\x18\xeb1\x14\xda\xb6#(\xdc\xdbl\xd8\xee\x07\x1e~\xf8\x11\xfe\xca_\xfa\xab\xfc\xb6\xcf\xfb\xbc\xfb\xfd\x98\xff\x8b\xc4s\x06X\xaa\xca\xbf\xfa\xce\xef\xe4\xf7\xff\x81\xdfG\x1a\'\x9a\xb6\xad&lt;\x94\x05\xab\x82\x88\xc1\xb6\x0eM\x03sg\xe8\x05\xd6\xb35\x93\x17r\x11\xe6\xcea5\xa1\xc60\x9f/\x89\xdbsR\xce`\x1cE\x84)eT\x94+W\x0f@,\x9dZ\xc6a\xcf\xf3o&lt;\xc6z9\xe3\xe9\x0f~\x90+\x97\xd6\xdc\xbdu\x8f\x103\x07\x07\x07\xdc\xbay\x13?\xeb\xb8sr\x8c\x18\xe5j\xb3`\x8f\x10DaH8k\xd1\x92\x18C`T\xc1\x98\x86\xf9b\xc9\x07&gt;\xf8\x14c\x88\\\xba|\x95{\xfb\x1d\xc7g\xe7x\xe7y\xe1\xf3\x1f\xe7K\xff\xd8\x9f\xe2\x8b~\xf7\xef\xfeP_\xf2\xb9\x1a\xcf\t`\xa9*?\xfc\xaf\x7f\x98/\xfe\xef\xbe\x90\xf3\xb33z\xef\xf0]C)\x05A\xe9\x9cc\xd6\xb5\xe4\x9cX\xb4\x9e\x855\x98\x92\x98\xcf=\x81L\x10GSZ\x1aM\x98\xae\xc57\x1e\xb1J\t\x05\xab\x9e!M\x98F(Z\x987=\x8d\x11RT.]\xbfF1\x85\'\x1e\xb9\xc6\xee\xe4\x94\x93\xe3#\x92\x11J\x12\xacU\xc6qd\x9cF\xb4(\x9b\xed\xc0\xd5\xcb\x97\x11U\xb6a\x83\x95\x9a\x93\xe5\x1c/\xa8\x0bKTe?LLCa\x98\x02%\x16t9\xe3\xce\xbd3\xa6)\xd1\xb5\x1d\x8b\xf5\x9a\xdf\xf3{\x7f?\x7f\xf4O\xfcI\x0e\x0e\x0f\xef\xf7\xa3\xff\xcf\x8e\x07\x1eX\xaa\xca\xbb\xde\xf9.~\xd3o\xfe\r\xdc\xb9{\x07o\x1d\x16E\xa5\xd0x\x8f\xb7\x96\xbe1&lt;r\xf5*)\x05$eL\xc9d\xcd\x17\'\x9a\xd2\xfa\x86P,W\xe6\x0b\xc6\x1c\x91\x92h\xe63|;ci:\xce\xa7s\x8eO\xef\xb2\\\xaf\xe9}\x8b$\x85\x02\xd7\x1f{&gt;\xf3\xe5\x8c;\xcf|\x10\x03\xe4\x12q\xce!%#\xce\xd1\xf7=g\xf7N0\xc6q|\xba\xe5|\x7f\xce\x95K+\xdaV\xd8\xed2\xf3y\xcf\xb8\xdf\x13c\xa2\xb1\x96H\xe4\xeclG\x8c\x86\xa2\xb0\xdbG\xcerd\x18\x0bqJ\x84\x94if3\xfa\xae\xe3\x89\x97\xbc\x84\xbf\xf6\xd5_\xcd+^\xf1\xca\xe7d\xde\xf5@\x03KUy\xf2\xc9\'\xf9\x1d\x9f\xff\x05\xbc\xeb=\xef\xa4i=\xde\x18$\'T\x04/\xb0\xeaZ\x0ef\x1d\xcb\xf9\x82~\xe6\tiD\x93 \xadgL\x03-\x86^\x85\xe0\x85\x10\n\xadq,\xfa\x8en&gt;\xa3d\xa55\x96\xa0\x13Ea\x1c\xf6\x1c\x1e,Yv+\x9co8&gt;?c\xd6\xcfh\x1b\xc3\xed\xdb\xb7\xe8\xbb\x86\x87\xd6+T\n\x88\xc7\x00\xa9D6\xa7[\xbc\xb1\x9c\xe5\x89i\xb7\xa3\x9fu\x84)a\x0c\\\xbbr\x95\xe3\xdbwh\xbcc\xbd^pt\xf7\x88\xbbg;&amp;)\x8cQ9\x19&amp;l*h\x82M\x84A\x1c\xab\xf9\x8al3\x87\xd7\x1e\xe1\xff\xf9?\xfeO\xfc\xfa\xcf\xfel\x8c1\xf7\xfbu\xfc\'\xc5\x03\x0b,U\xe5\xee\xdd\xbb|\xfe\x17|&gt;o}\xebO\xb1X\xcc\xe9\xbcArF\xc40\xc5\x89E\xe3\xb8\xb2\x9aC\xce\xb4\xde\xd36\xc2r\xb9 \xa9%\xeeG\x9cS\xd4z\xda\xa6!\x95\x84\xb1-%F(\x99\xacJs\xc1\xba7\x8dC\xacc\xd8\x9dR$1kfx\xdb1_\xcd\x18\xf6\x81\x1cG\xb2f\x1a\x03\xab\xc6\xd2\xcef\\9\xbc\xc2\x18\xb7XQN\x8f\xf6\x84\x10\x91U\xcb~\xb7A\x8b\xc1\x8bp||\xc2\xe5K\x07\xf4\xce0\xee\xf7\\\xbe|\x89a\xbf\xe3\xde\xf9\x8e\x89D\x0e\x85g\x8e\xcf\x08)#\xc9po*\x9cgXv+B\xaey\xd9\xa2\xed\xf8_\xfe\xd2_\xe6\xb7}\xde\x17&lt;\xa7N.\xfb\x15_\xf1\x15_q\xbf?\xc4\xbf\x1f\xaa\xca\xcd\x9b7\xf9\xa2/\xfaB\xde\xf2\x96\xb70\xeb;\x0c\x05I\x99\x18GZ\x07\x9d\x08\xad\x13\x9c\x81\xbek\xe9{\x0fF\xc9Y88&lt;\xa0[\xcc`\xca\xa8*c\x08h\xcc\x94i\xc4;\xc16\x8ev\xde\xa1\xb90\x9eo\x80\x82\xb1\xca\xc1z\x01I)\xb1\x10r\xa2\x94@)\x06\xcd\x89i\xd8#9\xd1w\xb6\x02s\x1a\xe9[G\xdf\x815\x8e!\x07\xac\x15D\xa0\xa4\x8cs\x86\xf5jNJ\x81\xab\x97/\xd1x\xcbr\xe6i\x9da1k\xf1F\xb1%U\xee\xcd\x08\xdeX\x0e\x9a\x8eb\r"J\x96B\xc8\x19%\xf2\xc3o|\x03\x8f&gt;\xfa|^\xfa\xd2\x97=g\xc0\xf5@\x9eX\xc30\xf0E_\xf8\xbbx\xfd\xf7\xbd\x9e\xa6i\xe8\x1a\xc7\xac5X\x11T3W\x96sV}O\xdb\xb5\xc4\x14\xf0\x08\x8bE\x8710\xed\x12c\x98x\xf8\xb1G\xe9}\xcb\xcd\xa3\xbb\xe4\x941\xb9\xbeH\xeb\x04\xd3yZ,\xad\xefI\x14v\xdb\r\x82\xd2z\x87w\x1d \xec\x86\x1dHf\xd9\xafY\xcd;\xce\xb7\xc7\x940p\xd87,\xe73\x9co\xf1b\xf0\x9d\xd0\xcffl\xf6\x81\xb2\x0f\x0c\x9d\xc1\x84\xcc\x98\x02\xed\xbc\x83\x94\x99w\xb5 X\xfa\x86R\x94\x93\xfd\x06c\r\xc7\xa7\x1bNN\xb7lc$;G\x8a\x86\xa7n\x9d\xf0\xd4\xf1\x16|\xc7^\x0c\x8b\xd5\x82R\x12m\xd3\xf2\xff\xfd\x07\xff\x88\x8f\xfa\xe8\x8fyN\x80\xeb\x81\x03V)\x85\xbf\xf8\x17\xff\x17\xbe\xea\xab\xfe*\xc6\x18\x9c\xb1\xf4\xce\xb2\\\xceY\xcc[V\x97*\'\xb5\xeeZ\xac@\'Z\xe7\xa7\xaca\xdd\xcf\xd8oG\xf6\xe3HN\x13\x8d1t\xfd\x8c`-\xe3TH1\xe2\xad\xc1\t\x18\x02)\x15\x9a\xf9\x8c\x92\x12\xd3n\x83\xf3-\xd69\x8a\x80/\x8a\x8d\x91\x94G\xbaE\xcb\xa5\xc5\x828\x0e4Fh\x1a\x8b\xf1-\xb3n\x81\xd1L\xd7z\xc4Z\x86\x98(\xde0\x17!h\xa6\x88\xe0\xac\xc3\xa8\xc5ha\xd1\xb5\x18\x1cS\xde3\x86\xc8\xd9\xf9\x8e\xdd.\xb0\x8b\x03\xbb\xa2\x8cS\xe1t\x13x\xf2\xf69\xbb}`k\x94]R|\xd32\xefz\x1e\x7f\xec\x05\xfc\x8b\x7f\xf1:\x0e\x0e\x0f\xee\xf7k\xfa\x8f\xc6\x03\x05,U\xe5\xa7\xdf\xfa\xd3|\xc6g~\x1a!\x04\x00\x1a\xebX\xcf\xe6\x94\x9c\x10\xabd\x12\x87s\xc7\x95e\xcf\xa3\xeb\x15\x0f]\xb9\x84\xf7\x16\xe3\x1c\xc3v\x8bM\xb0\x9b"JAS\x06\x84\xee\xd2\x01\x8aE\x14\xa60b\x05\xc2pF\xc9\x85\x98\x15S,\x9d\xb7\x98\xa6A\x80\xae\xef\xb1\x9aXXh\\A\xacA\xac#\x87\x80\xa6\xc8l\xd1\xa1\xc6a\xf0,;\xf0M\x83\xb8\x06J!\xe5\x84\xf7\x86\xa6\xeb\x19\xc7L\xcc\x11Qp\xd62\xeb\x1a\xc2\x18\xc9)Qrb\xd4\xc4v\x189\x1d\x13\xf7\xee\x9d\xa1\xc6\xb2Wx\xea\xee\x96{\xf76lE\xb0\xdd\x92\xdbG\'\x18\x11\x8c\x16\xbe\xf2+\xff2\x7f\xf8\x8f|\xe9\x03\x7fj=P,\\)\x85\xff\xfd\x7f\xff:\xe2\x14@\xc09\xcbz9\xa7\xc4\xc0b5G\x14r\x1cY8\x83\x95B\xde\xec\x18J$\xcf[\xfa\xc5\x9c\x83y\x87\x0c\x91\xc6\t)&amp;\x9cw\x045\xc4\x98\xd04\xe1\xad\xd2\xb6-N!\x9b\x05\xc5\n\xdb\xed\x16\x9b\x04RB\x92b\x9dE\x87=1\x07\xd2\xcc\xd1\x88\xa3\xa0\x08B\xe3&lt;mo/N\xc8\x86\xd9|A\xe7\x94\x183\xd6\x1a&lt;\x8a\x1aO0\xa0\xa9\xd0X\x87\xa5\x80\x16R)\x8cc-\x02\n\x05\xeb\x0c6\x16\xfa\xd61%\xa5\xb1\x86d-}\xd3rP`\x1f\x13\xd3y`\x7fv\x8e\x03R.`\xe1k\xfe\xd6W\xf3\x1b\x7f\xf3\xe7\xf2\xd8c\x8f\xdd\xef\xd7\xf5\x1f\x8c\x07\x06X\xaa\xca{\xdf\xfb^\xbe\xeb\xf5\xdf\x8dJ\xed\xc39\x11\xe6\xb3\x06\xe3[\xa4(]\x86e7g\xd5\x0b\xebYKo\x0b3\xebh[\x8f\xa3^]F\x0c]\x9b\xf1\xf3\x16_\x1c\xa6u\xc4\xa8$u$\x99\x18v#]\xebQc\xf0\xd6\xb0^/\xb0*\xb4\xce3\xc6\x891\xa5\xfa\xa2\xe7=3+\xcc\xbcg\xdew\x18\x01\x05T\'\xbc3\x98\x06z\xaf\xe4)\xd1\x1aC\xc9\x19u`\xc5\xe0\x8a!%E\xc88\x91:\xca|q1\x88\x14\x8c\xd8\x8b\xd1\x1e\x0f%\xd3R\xe8\xe7s\xb2\x15P\x8743\x06\xbf\xe3\x84\x89L%\x81E\x84\xa2p\xf3\xf6\x1d\xbe\xee\xeb\xfe\x16\xff\xeb\xff\xfaW\x1eh\n\xe2\x81\xfad\xdf\xf5\xdd\xdf\xc5\xbd\x93\x13\x8a\x80\xb3\xc2\x8b_\xf0\x04\x8b\xf9\x9c\xce58c03\x87Y\x18\xe6\xad\xc5\x02\x9dm\xe8f\r\xb3\xc6\xd17\x8e\xd6)\xad\xc9,\x9b\x16\xe7\x1d\xd2\t\xdeY\xe6\xbdc\xb5\xa8W\xd1z\xd1\xd04\x85\xc3\x99\xa35\x99\x86Do\x95\xbe\x11\x16\xbe\xa1\x15K\xa3\x916L\xac\xfb\x96\xf9\xd2\xd37\xd0K\xa1\x95\x82\xf7\x16\xe7,F\n%\x0c\x98\x9c0\x14 \x93\xc9\x14#\x88(\xde\x19\xacu\x14-\xa8\x14, \n \x94\x04\xa5@L\x82\xb3\x1d$\x83s\r\xde4dU\x8a\x14\xfa\xbe\xe1\xea\xb5\xcb8\'\xd8\xfa\x17\x99\xf7s\x16\xb39\xaf\xfb\xf6o\xe7\xee\x9d\xbb&lt;@Y\xcc/\x89\x07\nX\xdf\xf6\xba\x7fA\x18\x07\x8c@\xd7Z\xee\xdd\xbd\xc5\xb0\xddc\x0b\x18\xcd\xac\x1b\xc7\xc3\x8b\x05\xad\x823\xb0\xe8;.-\x16\xf8\xc6\xd1x\xa1u\x86n\xd6\xd0:\xc3\xba\xf3\x1c\xceg\xacf=\xb3\xd6\xb3n\x1d\xd7\x963\xae\xae\x16,\xe6=\x9d\xf3\xf4MC\xdb\xb6\xccf-\xb3y\xcb|\xd5s\xe5\xa0\xe1\x91\xcbk\xae_Z\xe1-x\x01A0\x8d\xa7k\x1c\x9d8\x9c\xf5X\xf5\x90\x15\x8c\x12s\xa1\xf5\x06\xdf\xb4\x18kP"\xb9L\x18\x07\x89\x823\x06P\xc4Z\xb4\x18\xd4*Q3\xd6\xd6c\xb0\xb4\x86\x94\x12\x9a\xeaX\xb3h\xa6\x91\xcc\xccD\xae-g\xf4\xade\xd6\x19 b\xbd\xe1\xe8\xe8\x88\xaf\xff\xfa\x7f\xf0@\xe7Y\x0fL\xf2~\xef\xee]^\xf6\xf2\x17\xb3\xd9\xec\x98\xcfg\x1c\xac:L\x8ctM\xcfj\xde1\x9f5\\\x99;\xae\xb4-e\x18\xc9&amp;qi\xd9\xf1\xf0\xe1\n\xd3\x08\xae\x00\xa5`2LN\x985-m\xd3\xa2\xaaXo\x101HQ\xc8J$\x93\xc7\x08)a\x00\x91\x8c8E\xa4\xc0 \x8c\xb1\xd0/f\xa8UT\x0b\xde\xb5`\x0cF\x14b\xc2\xb5\x1e\xad;\x19\x18\x110-\xc6\x8c\x041\x94T\xea\xb7\xd58T\x0cS\x8e\xb5An;\xc6\x18\x88\xfb\x80\x16%\x97\xc2\xacm\xc1X\xee\x9c\x9dr\xfb|\xc7\xee|BS\xc17\x0e5\xc2\xbd1s\xe7d\xc7\xf14q\xb4\xdd\x93\xd5a\\C\x0c\x01U\xe1\x8do\xfc\x11n\xdc\xb8q\xbf_\xdd/\x1b\x0f\xc4\x89\xa5\xaa\xfc\xdc\xcf\xfd\x1cgg\x1b\xac1\xa0\x858\x0c\xb4MC\xeb\r\xc6$\x8c$Z\xeb\x98\xcff\x14\xef\x10\xb1\x08\x86\x903\xa4B.\x19\xd3\xd49v\xf9\xd0o\x95QM\xe4THQ\xc9!\xa1d\xac\x11f\x9dc\xd9\xb7\xb4\xb3\x06\xdb8\xacX0\x1e\x9a\x06\xef\x1d9\'\x8c\x18\xfa\xd9\x02\xdb54]G;_\xd0-WX\xd7\xd1,zf\xb39\xd67\x88wd\xdb\xa01#\x05\xc4\x98:\xb8\xd78\xe6\xbe\xa5iZ\x9coh|W{\x8d\nZ )Li\xc4[C)\x19q\x06\xacPD\xd8O\x11-\nd\xc28a\x15R\x98\xd0\x94\xc9\xa9\x16\x02\x7f\xff\xef\xfe]J)\xf7\xfb\xf5\xfd\xb2\xf1@\x00\x0b\xe0_\xbf\xf1_\xa3Rg\xd25g\x9c\xa9K\r\xc6\xd6\x97\xbb\\-\x11k89?\'\xc6\x11\xef\x0cS\x9e(\xa9\xd4\x93H\x84)g\xac\xb1X5D\x93\x89\x92\xc1\x08\xaau\xf6\x1d\x01\xb4\xe0\x0c\xe4\x1c0\xce\xe0\xdb\x0e\xc4C3\xc35K\x9a\x83\x15\xed\x955\x87\x0f?\xca\xe5\x87\x9f\xa0[\x1f0_\xaf\xe9g3\\\xdbB\xdb\xe2gs\xb0\x1e\xbc\x83\xc6\xa1^\xb0n\x06\xa6\xc1\x18\x8b\x88\xc373p\x1df\xb6\xa0]\xaci\xdb\x1e\xe7[\xba\xf9\x9c\xc5\xa55v\xd9\x93\xad\xc1\xfa\x16\r\x19\xdd\x06b\x08L%b\x9cA.z\xa2\x87\xebU]\xa2\xa5`l\xa1h"\xa5\x80\x96\xc2\xb7\x7f\xdb\xbf\xe0\xf4\xf4\xf4~\xbf\xba_6\x1e\x88\xaa\xb0\x94\xc2O\xbf\xedg\xea\x88\xb1f\xbc\xf1\x95X\x14\xc17\x1dm\xd3A.` j`1k\x102XH\x9a\x11\xdf\xe2\xacC\xbdc7\x8c\x14/,fs\x1ak\x10UJ\xcc@A\xad\xa7\x901\x02\xbe\x99\x93r\xac=F\xeb\x98\xaf\x97\xa8\x1a\x12\x90K\xc6\xcd\x16XY\x90\x83!\x85\x1d\xce\xba\x8b\x05\x8dD\xb9\xa8\xec"\x06q\x960\xee\x11Q\x9a\xf9\x9cq\x1ap\xaeA\x9b\x86\xd5\xe2\x00\xa1%\xa5\x115\x82k&amp;|\xce\x84aO\x0bh.\x80\xd0\xf6=\xa6\x15R\xa8\xff\xeen\x1a\x89Y\x90\xc6szt\x8e\xb7Jc!c\x88\x12\x899\x12\xa6\xc4\xfb&gt;\xf0~\xde\xfc\xa67\xf19\xaf}\xed\x03\x97o=\x10\'\xd6v\xb3\xe1\xedo{\x1b \x18\xa9\xd5\xd4j5\xc7[\xc1[\xa5\xec6\xb8T\x101\xa8\n*P\x04\xa2B\xf4\x16q\x1e1\x86\xd6\xb5\xf8\xae\xa7\x9bu\xf8\x8b\xf6\x8c)\x96\xa6\xe9\xe8.\xae-\xe3&lt;\xce\xcfI\xc6\xa0\xd6U\xda\xc19\x88\x99q\x9c\xd8\xef\x06R\xc8\x8c\x9b-\xdb\xedM\xa6aC\x1c\x03\xa9\x80\x88\xa3\x99-\xd0\xd9\x02Y,\xe9V\x87\x88\xef\xf1\xcd\x9cv\xb1\xc4\xcd\xe6\xf4\xab5\xae\xef\xc1y\xd48\xb6\xe3\x96\x10"%\xc3\xac\x9f#\xc6\xd1\xce\x164mO\xd3\xcf)\x06\xec\xac\xa7[,\x80\x82\xaa\x92\xc4\x92\x04\x92\x16\xc4;\x8cXz\xd3\xa2\xa9\xd0\xb7\r\xd7\xaf_E\x15b\xca|\xfb\xeb\xbe\xed~\xbf\xbe_6\xee;\xb0T\x95[\xb7oq\xf3\xd6\xd3Xcp\x18\x1a\x81\xddn\x03yB\x86=\xb6\x14\x8c\x81\xac\x8a1\x16k=c\xca8\x1c\xd6x\xac\xf58\xe31\x05\xda\xb6\xc5\xaa\xc5\xd4\xdb\x11u\x1e\xe9\xe6\xe0;\xac\xf3\x18cQU\x9ck\xb1MGVHb)\xb6\xa1\x88@\x81&lt;\x05\x8c*\x9a\x05c:\xba\xd9\x02\xdf/I\x089\x15\xbc\xb6 \rCN\x14c\xc0T\x85\x9aR\xea\xdf\xd1\x0cE\x0ba\x18\xd0\x94\xd9n\xce\xd9oN\t\xdb]e\xff#@\x03\xc6\xd3\xce\x16\x98\xa6\xa1\xebg,g\x87\xa4\x981b\xd0"h\x11\xc4\x18\\\xd3\xe0\xda\x0e\xa3\x8e\xfd\xf9\xc4\xdd\x9bwj\xfe\xa5\xc2\xb7\xbf\xee\xdb\xd9l6\xf7\xfb5\xfe\x92x \xae\xc2w\xbc\xe3\x1d\x0c\xc3\x1e\xc1\x82\x15\xb0\x96\x94\x951\x17\x16\xcb\x16\xd3\xf5\xecB\xa05\xca\xa1s\xecc\xa2\xe9z\x10G)\x10\x8a\xd2v\r]\xd3\x92K\x81\xa0\x84\x90Q\x19(\x18\\t\xd06\xb8Vp\xda\x12\x87\x80J\x95&amp;\x8a\xc0|uH.J\xe3\x0c}o\x89\xd3X{\x86Y\xb1]Gq`\xbb\x8e.+\xfb\xdd\xa6R\x10\x05JJu\x11\xc3{\xca\xa4\x04\rHJ\x84\x18\xf0\xce :\xa0\xbe\xa1i\x0cE\x13\xc7GG\xc4\x90A\x0c\xceY\xba\xf5\x82\xed\xb0c\xd8\xefHc N\x19\xd7\xf4X\xe3X]Zs\xeb\xe4\x041\x85\xae\xedp\x1ef\xbb\tI0HA\xa4PJ\xe6\xce\xdd{\xfc\xec\xcf\xfe,\x9f\xf0\t\x9fp\xbf_\xe3/\x8a\x07\x02X?\xf9\x13?\x89f\x83q\x82X\x8bqu4\xa5_\x1f\xb2\xcf\x89\xb5qX\xef*Ai,4\rN\x14\x93\n\xa2\x86\xae\xf7x\xef\x88iD\x0b\x98\xa2\xa8\xf7\x90\x1b\x9c\x17\x9c\xb1L)\xd18\x0fZ\xc893\xa5H\xf6\r\xcd\xbcGr\xa61\x86"\x9eR\x14\xd7u\x88x`\xc2yG\x8c\x81\xb4\xdb\x12\xb4\xd2\x0fa&lt;C\xf3D\x0c\x03\x18!\xa9EE\x98J\xc0\xc4L.JI\x06\xab\x891F\xbcm\xe8\xe7=\x8d\x9b\x11\xa6\xc8\xf1\xc91\xb9(2\x80N\x11[\xbb&gt;\xb5p\x11\x8b\x88\xe1\xf8\xec\x98\xa4\x99\xc5l\xce\xfb\x9e\xb9\x87\x8a\xe3\xd2\xc1\x8a\xa7\xee\x9e!Ry1((\x86\xb7\xfd\xcc\xdb\xf8\xf8\x8f\xff\xf8\x07*\xcfz \x80\xf5\xd6\x9f~+E\x0b\x16C\xc9\x89a\x97q\x8d\xe7\xf8\xf4\x88+\x8b%\x16@\x85y\xd3\x93%\xd1\x02a\xb7\xa7\x9fu\xf4\x9d\xc5\x9aRII\xcdX\xdb\x80\xb8\xda\xe8\xb5\x81\xb6\x9b\xd5\xde\xa3\x11b\x0eL9\x80\xa9\x04\xac\xa8\xa2\xe3\xc8\x143\xde{b\xce\x98\xb6C\xc5\x00\x85{w\xef\xb0&gt;Xa\xbd#\xe5\tE)!\xd17-Z2\xde82\x82\xf1\x8e\x10Fr\x084\xd2\xe1\xbde\x1f6\x8c\xb10$C#\x8eT"\x14h\xdb\x05\xf3\xf9\xec\xa2_h\x99N\'\xc2nK\xeb\x0c\xab\xd5\x8ai\xdc\xb19\xdb`\x10t\x1f\xe9V\x1d^\x84g\xee\xdde\xbd\xb8D)\xe5C\x14\x83H%X\x9f|\xef\x93\xf7\xfb\x15\xfe\x92\xb8\xef\xc0J)\xf1\xf3\xef\xfc\xb7\xc8E\xd3\x19\x94R\n\xfb8p\xbd\xb9\xc4\xda4X\x1c\xce\tc\xd8\xb2:XC\xc8\xcc\xe63\x9a\xde\x03\x99q\x8cH\'X\xdbS\xb2\x81\x94p\x02\x83F\xca8\xe0s"\xa6\x00!\x80\xb7\x15X\xb6\xc1\x88E\xc4\x13\xe3@\xc9\x13E\x95\\vd\x14\xc13_\xcc\xd0\x9c(q\xc2\x19K\xb1\x8am,\xaeuX\xd3\x12\xa6@\xe7:\xb2(\xdd\x05\x95\x91c\xa1\x11\x87\xa6\x8c\x8a\xd0xG/\r\x93*%eb\xdab|\xdd\xca\xce)c\x9d2\xa5\x89\xa8\x06k\x1c\x07]O\n\x81q\x8c\x18\xd7pr|\x8a\xb1\x19-\x99\xbbg\xa7d\xe30\xb6\xca\x05\x94\x0b}\x88\xa3\xbbw\xef\xf7k\xfc%q\xdf\x81\xb5\xddn9:=\xc6\x18!\xa5\x8c\xa1\xf6\xda\xf0\x8e\xb6\xe9\xd9\xa4\x91&lt;Y\xdc.qy\xe5\xb0F\xc1\t!\'\xdc\xa4d/h\x93+U\x11F\xb4\x18\x0c\xca.L8W\x8b\x81i\x9a\xf0\xceb}\x0b\xde\xd6\xeb\x96\x8cI\x8aq\x0e\x95L\xb1\x16\xa3B\xdb\xb5\x14#X\xd7\x92.Xt\x11%g\xd04`S$\xb9L)\xa96\x92\xb3\xa29\x13B$\'\xa5\xe4H!\xa3j\xf1b\xf1\xf3\x05\x8d\xf5Xc\xd8\x84-8e\x8c#\x89\x86\x12#\xbb\xed\x96iL\xa8\xf1\xb8\x0e\xf24\x91B\xe6\xd2\xc1\x15n\x9e&gt;\xc3~\x0c\x84\x900\xe2\xaa0\xc9\xd5\xcb\x9c\x9e\x9e\xa3:b\xa8\x1d\x85\xa3\xa3#r\xce\x0f\xd4\xca\xd8}\xad\nU\x95i\x1cI)P;2\x85\xac\x85\x9c\x15h8&gt;:g\x9a2\xd3v\x87J\xc6w-\xd6*\x85\tuJ\xb6\x11rB2\x84)3\x95@6\x91\xe2\x14\xd7z\xba\xb6\xa7u\x8en\xee\xe9\xbb\x16\xb1\x86\x9c\n\x14&gt;\xb4:\x86T\xf5&gt;\xcd\x99\x14\x13\x14AT\x08c\xa8\x95^\xcchQ\xc4*\xaeq\x88w\x84\x980\xb6\xc3\xfb\x16LD\xcb\x84\xa9E\x1aX\x0b)a1\xb8l\xa0\x14B\xc9l\xb7\xe74\xde"\x9aY\xfa\x86&amp;\x86*&lt;bl\xa5J:\xc7b\xe198hh\\F\xf3D\xd39\xa6\x1c\xc9\n\xb3\xa6#k\xe6\x99\xa7\x9fa\x18\xeb\xe9\xaaT\xf2\xf7\xe8\xe8\x88\x18\xe3\xfd\xc6\xd2/\x8a\xfb\nq\x11a\x9c&amp;\xc2\x14\xa1\x94\x8b\xdc\x06\x8a1\xc4\x18p\xf39\xe2&lt;!N,{K\xda\xef\xe9./\xc9\xe3\xc0\xccZ\xe6]\x07\xc6\xb2\x1f\'B\xca,\x16}M\xb6s&amp;N\x89N-\xe2\xa8/7W\xa1Zc\x04-\x89\xc6;\xe2\x14Hf\xc2[\x83\xc1a\xdb\x16\xeb\xea\xec\xbcH&amp;\x86\x88k&lt;\xce\nY\x04\xc53\r\t\xef\x1bD\x1c1\xec\xea\xe4A)h\x8a\xec\xa7\x01QA\xc6\x81\x10&amp;\xbc4\xa4iKI\x85\xdc6\xa4\xc6\xd7~d\xe3)(\xe4\x82\x15\xc1{C\xdf5\xac\x963\x0e\xdd\n\x9b\x84\x93m`\xd7\x0b\xb3\xd6\x12\xd5\xe0|\xe6py\xc0\xcd\xa3SR\xae \xd2\x9a\xe1q\xb69#\xc6H\xdf\xf7\xf7\x1bO\x1f\x8a\xfb\n\xac\xaa\x0bZP\xe5\xe2\xe7\xd9\xa4\x94\x8b|\xa7n\xba&lt;|yA\xeb,\xcd\xcc\xb1\x1d\x06$\x1b\x16\x8b\x16c!\xeaD\xe3z\\cH\xe3H\xca\x16\xe7=\x8bY\x87\x15\x88)\x105\x13C\xc0\xa9@\xc9\x18o\xb0\xbeG\x15\xd28"\x9d\xafOB\xa1\x14\x87fA\xac\xd6=E2E\xc1\xfb\x86}\x0c\xa8\x85\xa4\x81&lt;L\xe8\x148\xdf\x07\x96\xab\x1e\xf1\xcaLZ\xc61\xe2\xe73f\xebK\x84\\HiB\x87=N"\xe3\x10\xc8\x19\xbc\xd4)\x85\xb1L\x84aBDX\xaf\xd7\xcc\xfb\x19\x88\xf0\xf0\xb5\x03V\x8b\x11\'#R\x16\xdc&gt;\x8f\xdc9\x9d\xd8^\xe8?\xe4\x9c*g\xa6uN\xeb|{\xce\x14\xa6\xfb\x8d\xa5_\x14\xf7\xfd\xc4\xda\x0f\x03)%\x8aJ\x9dD\xb0\x82\x02\xa2\xc2\xee|\xc3r\xde`\xc5\xe2\xfb91Ev\xbb\xc8\xbc\xedi\x1a\x079\xa0j\xea\xac\x96BH\xb9.N\xec\x03\xc1X\xb2\x164\'\xd4\x19D,\xabnN\xb7hQ\x81\xde\x1b\xfc\xa5\x83*\xd8\x91#\xf4-\xa8\x12\xc3\x1eI\xe0\x8c\xd0\x8a\x90\xe2D)B)\tM\xa9\xe6V9\xe1\xbc\xa7\xebz\x96\xeb\xcb\x88\x8dhj\xd0\xdd\x84u\x95\xe2\xf0\xae\xa5\x97\x86Y\x8c\x8c\xbb-\xae\xb5LY\x89\xc5\x92\x8b@\x1apcd\x9f\n\xddlA\xd6B\x8a#\xd3\x18I\xa9\x9e\xa8\xd7\x1e\xbe\xca\xb2\xeb1\xe5\x1e\xe3&amp;p;\x06\xc4\x08\xa6\x98\x8b\xddF\x01s\xa1\x02\xf6@\xcc\xa8\xfc\xbb\xb8\xef\xd9^\x0c\x01c=Z2P\xc7PD\x0cY!\xa4\x88o\x16\x88\xb7\xe4\x12\xc8S\xa0\xb8L\xb3jI\x06JTL\x86}\x1c\xe8f3\x14K\xc9\x850\x05\x864\xd0.\xe6\xf4\xfd\x02gA\x8c\xb0Z-\xb0\x0e\x8af\xa4\xa4:\xa9\xdaw\x18i0\xf6\xa25\x84R\xd4\xe0\x8de\x0c\x11\x1d\xf6\xb4\xbe\xa3xK7Lh\x1a\xd1\xaeC\x8da\xb6Z\x93\x10b\x0c\xa0\xd0\xcef\xa4\xac\x18\xf2\x85\xc2\xcc\x84\x8aRlA\\\xcbb6cL\x17E\x86\xefi\x9cc\x1a2\x85D\xca#1\xd5\xf5\xff\xfd~\x8f1\x1e\x1b\x12\x9d\x16\xd6\x1d\xf46\xd1]\x9cP\x08,\x97K6\x9b\r\xa20\x8e\x03!\x86\xfb\xfd*\x7fQ\xdcw`\xed\x87\x01\xcdu\xff\xaf\x8a\xe7\x19,r\xd1\x8c6h\xc94\xc5\x11\x87\x11k3x\x8bwJ\xe7=\xe3\x18\x18\xa6\x11\xef\x1cy\x1a\xb0b1\xd6\xd2\xcd\x16\x84q\xa2\xef:\xc4\x14\xa68!\xcer6li\x9c\xc1\xdbZ\xa6\x1b[+Pg\\\xad\x18]\x835\x1d\xaaJ\x9eF\x1ag(}\xad"mL\xf8vF\xf4\x16\x15\xa5\xedg\x04c\xd0\x0b\xfd\x87)\x05B, \x96\x90c\x1d\xeb\xb1\x86v\xd6\xe2\xe7=\x8a`\xa5a\xdd7(sN\xceN\x10\x03\xb3\xd5\x8a\x9c\x02\x9a\x84a\x9c\x98\xf5\x06o[N\xcf\xce\xb1\n%fzq\xcc\xbb\x06\xd8\xd7\xf9w\x0c\xfb\xfd\x1e\x91\xda7M93\x8e\xe3\x87\xae\xc6\x07!\xee;\xb0RJ(\x8a&lt;;S\xceE2,\x8a\xb1B\xdb9\xacIh\x08\xb4\x0b\xcb\xe5U\xcf\xe5\xc6\xb1\xb0B\xb6B0B\x8e\xa5nC\xf7\xbe\x92\xa6\xed\n]E\x8c\x08E#x\xc30NLg\xe7u\x8e\xbe\xeb\xb0\x9d\xe0Rb\xde\xcd1\xed\x8ca;\xd2\xaf\x9b:\xf5\x99\xea\xa3\xb1Nj\xcf\xb1d\xb4$\x92m\x107\xc3\xfb\xaa\x01_\x8ca\x9a\xf6\xa4i\xa4\xc4\x8cQ\x07\x14r\xae\xec\xbeo*u\xa6\n\x14C\xee*\xfd1\xeev\x94)a\xad\xa5o{FU\xa6)\xe2KbW\nE\x0bg\xdbs\xd6\xab\x15SP\xb2+\xacf\x96u\xe78\x0f\x99\x90\r\xb9\xa4\n\xa4"L\xdb\x81\xbbw\xee\xf0\xc2\'^x\xbf_\xe7\x87\xe2\xbe\x03+\xe7\\\x17\x05\xa8\xc9h\xc9\x99r\xd1(\xb6F\xf0\x0e\x8a\x04\xfa\xb6a\xd1[\xac\x14L\xc9\xc4\xb16\xa7\x9dZ\xf6!a{\x07\x06Z\xdf\xd2\xcfZ\x8c\xaf[\xc8hG\xca\x85\xbe]\xa2)\x92b\xc4\xd6\xea\xa0NI\x14\x08!\x82\na\x08(\xb5Q\x9d\xb0x_\xe7\xe2\xc7\xb3\x81&lt;\x06|g\x11\xebp\x16\xf6\xe7\xe7\xa4\x98\x891\x92)\x95\xec\x14\xb0\xaal\xe3H\x18\'\xa68\x91(\x88q\xecv\x19\xeb\xab0\xee\x14G\xac\xf5\\]\x1c\xb0\x9a\xd5)R\xb5\x99\x983\x0eC\x0c#\x90\xf1\xd6\x12\xadP\xacC\xacg&gt;\xefa\x17\xc9\x1a\x7f\xc1\x80\x9f\xe0\x04~\xe8\xfb\xbe\x9bW\x7f\xd8\x871\x9b/\xee\xf7+\x05\x1e\x00`Yk\x10\x03\xa6H%\x1c\x8d\xa1h\x1d\x13\xee\xacaf\x1dW\x16\x0bV^9X\xf6\x182)NX\x89\x0cI8\x8d\x01\xe7\x1b|\xebi{_\xf7\x0b\xa7\x894\xed\x90RY|k\x1d\xa2\xa5\x8a\xdb\xf6\r)\x8c\x88\ni,\xec\xd3\x86\xae\xeb\xe8\xbb\x9e0\xee\xf19\x81Q\xac\xed1\xc9\x10\x87\r"J\x11!\x97\x84k{\xc6\xb8c\x7f\xbe\xa3\x14%\x94H,\x05c,S\x1a\x18\xc6\x89\xdd~`\xbb\xdf\x13\xd52\xc6H.\xc2f\xbb#M\x85\xa6\xb3\xa8\xad\xac\xf9\xc9&lt;\xb0n\xa0_\xccq\xad\xc3\x14E\x86\x01g\x84\xd9\xacR\'Ml(\xba\x87\x0b\xc9pL]\xe3\xb7\xd6\x92K%jmq\xbc\xfe[\xfe\x0e\'?\xff\x16\xfe\xc7\xaf\xfeFV\x87\x97\xb8\x18m\xfc\xb5\t,Ue\xb1XbD\xea\xd5\'Z\x1f\x87\x11f\xbe\xe5\xf2b\xce\xcc;Z\x0b\x9d\xb74\x80\xf3\x1d\x91\x8c+\x1e\x15\xc5Y\xa9\x9c\xa4FRi8\xdem\xb9w\xb2A\t8\xe7\x99\xc6\xc8\xcc{\xfa\xce\x93\xb5`[\x8f-\x99\x18\n\x92\xc0\xcf\x1a\x86)\x10B\xa0\xf7srJ4m\xc3\xb0?\xc2n,y\x1aI!`\x9a\x96\xb9\x9fc\x89LS\xc4\xd8\xca\xd8\xefwu\xf3:ee\x8c\x81\xcd8\x91\xb3e\xb3\x9d\xd8\x84D\xba ccH\xe4\x12)c\x01\x15\x9c\x18\x0c\x16\x95\xc8\xf6\xee\x0e\xdf\xb6\x1c,\x16\x94\x18\xf0\xd4\x93q\xbf\x9bH1\x93B"\xe5\x00%\x82\x1a\xa4\x8e\xc2\x02\x82\x18\xd0\x14!&amp;n\xbe\xfdg\xf9\xd1\xd7\x7f+\x9f\xf3;\xff\xf0}\x05\xd5}\x07\x16@\xd34h\x11\x8a\xd6\xaaPU\xebj\xbdw\x1c\\\x9as83\\\xb9\xd4ac\xc4\x15\x8b\xb7\x16k\r\xa9\xd4\xa5\xd0\xde:\xd4B\x01\xee\x9e\x9cr\xb4\xdb\xb2\x9d\x04I\x99\\\x12\xab\xf9\x82\xd1\x04\xc2\x89\x12SA\xb5p\xf5\xf0\x80\xa4\xd5\xe1\xab\x9f\x06&lt;\x8a\xb3\x06o\x1d\x0f]\xbd\x86m,\xbe\xa9\x1a\x0ea\x1a9\xdf\x9c\x91\xc5\x12\xa6\x91~\xd6\x11S\xa6\xe4\xcc\xd9\xf9\x96\xcd80\xc5\xc8yR\xf6\xfb\x89\xb3\xd3=\xbb1\x13\xb4\xb0\x99\x12\xd9PW\xd5\x9a\xba\xbe/\xa9\xa0\xa9\x10J\xe2\xce\x9d;\x14\xf5X;c\x96\xa0\xa7A\\&amp;\xd9B\xd9M\xf4M\xc7\xd9\xf9\x16#\x96\xc6\x1b\xda\xce\xe2\x8d\x03S\t\xe5\x923\xf3\xcesy\xdd3M\x85\x906\xfc\xec\x8f|\'\x9f\xf5\x05_\x821\xbfFO,U%\xe7\xcc\x1b~\xe0\xfb1\xb6&amp;\xa1\xb9TaZ\xa8\x9bU\xe7g\xe7&lt;\xb1&gt;\xa0\x90\xe9\xbd\xbf\xc8\xc3Jm\xa9\x88%j$\x15\xc5\xa8!e\xe5l\xbb#F\x18\xce\'\x86\x9cp\x8dE7\x81d\x84q\x1c\xc8Y\xd1\x02w\x8fw\xcc\x963\x8c\x17\x0e:\xa1\xb3\x82\xc6H\xe7;Z9f\xb6\xe8Y\xaf+`\xd5*\xa9@\x18\xf6\x8c\xc5`BB\xbcp&gt;\r\x1co6\x9c\x8d\x03\xa7\x9b\xc8X`\x1a#GG{\x9e:9g\xc8\x05q\xa6\x8a\xe9b\xe9\xba\x81\xb6\xb5t\xd6\xe2\r\x88\xa9\x0b\xab\xfb\xc1\xa2&amp;\xb0\xcbu\xca\xe2p\xde1s\x8a\t\x99m\xd8\xe1\x9a\x06\x83aH\x99\xc6*\xceM\xb4M\xc3\xee\xa2\x85\xb3l,\x8f/zz),;E\xc7-\xd3\xb0\xa3\x9f/\xb8\x9f\xd7\xe1}\x03V\x8a\x81\xaf\xf9\xca\xff\x07\xdf\xf2\x0f\xbf\x89\xa5\x08G\x17\x0c\x9fjM\xe2\xf3E\xc5cE\xb0*\xa8\xa9d\xe0T*\xeb\xec\x1b\xa9\xad\x9b\xca\xa62\x0e#\xa7\xbb\x81I\r#\x8a\xb1\x96d,\'\xc3\xc46+\x9b\xf3-!&amp;r\x81\xc6Z\xda\xdd\x80\xf7\x96\xb5\xb7\xaczO\xe7\r\xce\x8f\xa4\x02\xd7\xb4\xd0\x88A\xba\x16\x95\xc8\x94\x13\xc7\'\'\x84\x10\xe8f\x1e\xdfXv!s\xbe\x1f\xb9y|\xc2\xbd\x93\xc4&gt;\x14\xb6c\xe4\xe8|\xcf6f\xac\x08\x07\xae\xe1R\xdf\xb0\x9e\xf5\xcc\xd6\xdd\xb3_)b\x88\x0ca\x82\x141{\x87\xf7\x8eQ\x13\x8b\xe0\x19\x8d\xe2:K\x08\xa1\x8a\x81\xb4M-j\x06\xa5i\x0c\xde\x15\xd2\x14\x00\xc5y\xc3\xb5E\xc3\xe3W:\x98F\x16\xde\xb2L\xca\xb8\xdf^\x00\xeb\xfe\xc5}\x01\x96\xaa\xf2co\xf8W|\xe0\xcd\xdf\xcd\xe3\x0f\xcdx\xe6\xf4\x1e\xd6\xd4\x91^D(\xaa\x84\x14\x11\x99\x91\x8a\x90B\xa6\xed\x1cY\xa8U#\x90c\xaa\x82\xb4\xde\xb3\xd9\xec\x99v\x81\xd3\xfd\xc8P\xa4N\n\xa4Z\xe5\xe5)\x10\x93\x92\xc6\xc8\x102c\x08 \x82\xdd\t\x8ds\xec\xdb\x96\xed,\xf1\xd0\xc1\x9c\xb4\xdbb\x92\xe2D\x98b\xa4\xed\x1bf\xf3\x1ec\x1d\xc9(\xa7\xc3\x9eV[\xda\xd0\xb0\x9d\x02\xa7\xfb\xc0\xd1V9\xda\x06\xce\x86\x89\xb3!`\x8dp\xfd\xd2\x8c\xc7\x1e\xba\xcc\x8b_\xf08\x87\xcb9\xeb\x85%\xe4\xfd\x85\x7f\x0f\xa8\xb1\xdc\xbbwL\xd8\x0eL\xdb\xc0\xf9\xb0\xc5\x94\x8c\xc9\x99\x82a\x1f\x13\x06e\xd6z./g\x1c\x9foh$S&lt;\x95\xf6(u\n\xc4\x8b\xe5\xfaj\xce\xe1aG9+\x1cv\x1d-\x85i\xbf\x01\x1e\xfa\xb5\x07\xac\x9c3?\xf7\xa3\xdf\xcf\x9d\xf7|\x80\xf7\x1f\xedh\xda\x86&gt;)C\xae\xcb\xea\xa8"\xb9\x92\xa5\xa1@\x8c\xc2F\'|k\xf1R\x07\xddL\x86\x143\xc3\x108?\x1b\x98Bf\x98\x12S\x16\x9a\xc6\xe0\xc4p\xed\xd2a\x1d\xd43u\x0cg\xcc\xf0\xd4Sw\xf8\xe0\xcd{l6{\x86}`\n\x89\xedd\x89!\xb0^\xce8\xda\xef\x89\xb6p\xc9.Y{\x83\xee\x06\x92\x16\xdc\xbc#\x8d\x99\x8ca7%\x8e\xc7\x89\x0f\xdc9\xe3\xbd7O\x19\xa7\x88\xc7p\xb0\xe8\xb0\x9d\xa5\x11\xc3f;\xf2\xb6\x9f{\x0fR\xc0\xe7\x84\xa5pxi\xc1\xd5\x87\xd6\\\xb9\xb2\xe4\xb0\xf3l\xa7@\xbf\xec\xc0g\xf6\x9b\x1d\xc5*X\xc1Z[EC\xbc!\x86\x1d%G\x1c\x8aI\xe0M\x83\xca\x9e\xd6\n\xeb\xc6su=\xa7\xe9=n\xefX\xb6\xb5\x9d4mO\xf85Y\x15N\xc3\x9etv\xc2#\x97\x0f9\n\x05#\rI\x03)\x07\xa2\xd6-aP\xc4\x0b`\x88\xe9bN\xbc\xc0t\x91\xe3\x18\xc9\x18\x15r\xa8\xfc\xcfvL\x84\xa0\x98F\x98\xf7\x86+\xeb\x03V\xab\x052\x05v\x9bm%!\x15L\t\\]u\x1c\xb6\rZ\x0c\xbb\x92\xd8\xec\xf6\xdc&gt;\xdaq\xba\x9b\xb8r0\xc7w\x1dP\xaf3k\r\xf3~\xc6\xbci\xd8\xb7\x91\\\nS\x08l\x86\x81\x0f&lt;}J\x08\x99u\xdf\xe1\xadp\x14#Z2\x83Xn\xde\xdb3\x86TGt\x8c\xe0\x8c\xd0\xdf&gt;\xc5\xbd\xf3)V\x9d\xe3\x89\xab\x07\x1c,&lt;\x07\x07s\x96\xcb\x19N\n\x8doX\xf5-\xb2\x1b\xb9r\xf5\x10k!\xc4H\x94\xccda\x9f\xa0i=\x0f]\xbfL:\xdf\xf0\x82k\x0b\x9e\x7f\xd9\xb3\xc0\x93\x9a\x16\xd3Te\x9c\xf3\xa3g*+{\x1fY\xf8\xfb\x02\xac\x14\x06:F\xae\xacg\xbcB-\xb7\x92\xb2)\xe7\x0ccArb\xac#SH\xeb\x10#u\x1e\xdc\n\xde\x08\xb61\xecr!\x9bB\xe7[6\xbbHH\x99)g\xd4\xc0\xc1\xdcs\xe5`\xc9~\x1a\xb9\xfd\xde{\x08=\xcf\x9c\x0f\x0cc\xa4DX\xcf\x1d\x87\x87K\xb2\x8e\xb5\xc76M\\^;bq\xec\xb7\x81\x0f&lt;sNC\xe6\xc6\xc3\x97X.\x97x\x05\x8b2[\xaf\x98/\x95i\n\x1c\x9d\x1csr\xba!\x84\xc8zfY\xce \'\xc7%\xdb\xb0\x89\x13w\xce\x07b\x82G\x1f}\x9c\xe7=\xfc\x10o\xfe\x897a\\\xc7\x95k\xd7\xb8}r\xc4\x07\x8f\xb7\xdc&gt;\xbd\xcb\x95\xa5\xe7\xc3_\xecx\xec\xb1C\xba\xbec\xe1Z\x86\xb33\xba\x87.\xa3N9\xdb\x9c2\x8d\x82\xed:\xc4\x081\x0f\x18\xe7H\xe7[\x16\x9d\xe1\xd1+\x0b\xd6\x8b\x8e4V\xef \xdfy\xda~F\x1ev\x17d\xc4\xfd\x8b\xfb\x03\xac\x14\x89y\xc4Z\xc3\xb2\x07o\x1dS\xee\xd9\x9c\xef\x101\xc4\\\xf7\xeb6C$\x1ff\x10K,\x85^\xb5\xb2\xd4\xb1\xbaJ\x88\xa9JyF\x85Y\xdf\xd0\xf5-\xeb\xd5\x8c\xdb\xf7\xcey\xe6h\xc7\xd9&gt;s\xba=b\x88\xcaj}\xc0C\xd7\xae\xf1\xde\x0f&lt;\x89t-\xd3nG\'\x86\xc3\xc5\x82\xdd8A\x8e\xcc\x0ch\'\x9cm\xf6\xec\xf6#y\x9d\x11\x85\xd6:Z\'\x18\xeb\x98\xf5-S\x1ciM\xc7\x95\xd5\xc4\xb5y\x8fs\x96h\x1a\x9e\xb9{\xcc\xd5\x835\xdd\xe5\x03&gt;\xf0\xde[\xdc\xbd\xf94\xf7\x9e~\x9a\xc6\xc0\x8b\x1f\xbf\xc2\x0b\x9e\xb8\xc6\xa3w\x1c\x1f\xf8\x80\xe1\xe8|\xcbv\x1bx\xd7;\x9f\xa11\xca\xa3\x8f]\xe5x\xb3\xa7=X\xb3\\\xf5\x9c\xdf\xbcE\x98\x94\xa6\xed\xb0\xaeE5QB\xe1\xde\xbdS6\xfb\xc0\xe3\x8f\xf6&lt;\xef\xda\x15\x92\x01m\x141\x85y\xd7\xd3ZK\x99\xee\xff\xd0\xdf\xfd\xe3\xb1T\xb1\x8dG\xa6=\x8dS^\xfa\xfc%\xa7\xe3\x9e\x0f\xde\x8b\xa4\xa4\xecba\xb3\x8b\xe4l\xd0F\x88\xc6b\xbc\xc7\x89e\xe5Z\x86a\x8fi\x0c~\xd6\xb0H\x91N*\xa9x\xf7\xf8\x9c\xb7?y\xcc\xf9T\x13\xe1\x82EMf\xd8\xef\xb8u\xeb\x19\x9ay\xc3\xc7|\xfcGrv\xf44\xef}\xc7{`\xd8\xf2\xc4\xe1!J!N\x03\xbe\xed\x18,\x9c\r\x03M\xe3\xe9\x9de\xd1v8+\xcc\xdb\x96\xe4-wO&lt;\xbd\xf7\\Z\xcd\xb8zp\xc8l1\xe7\x03\xb7nq\xb8\xea\xb9|y\x85\x18G&gt;:\xe7l\xca\xa00o&lt;\x1f\xf9\xf2\x17\xe1\xe2\x9e\x83\xc6r\xf8\xd8\x9a\x9c\x0f\x984s\xfb\xee\x11\xefx\xd7\xd3\xdc&lt;\xda\xf2\xe2\x17&lt;\xc4\x8a\xc2\x07\x9e\xb9I\x1e\x06\x1e:\xbcL+\x8e},H6\x841\xb0\xd9\x8e\x18gxh\xbd\xc0h\xa0\x18\xcb\xe1\xcc2n3\x8a\xc1KO7\xbbt\x9f3\xac\xfb\x04,\xe7&lt;\xbe\xedh:G\x9fz\xce\xc6\tg\r7\x1e9d\x8awH\x18\x86\xf3B\x0c\x85\xac\xc2\xc25\xa4\xach6\x14\xa34mC\xdb\xd6j\xf0\xd2\x95K\xf8\xc5\x82\xd3\xb3=\xdb}\xe0\xd6\xdd\r\xfb\x900V\xb8\xf1\xa2\x87\xd8\x9e\xefx\xfa\xe93\xbc\x16\x08\x137^\xf0(\x8f?t\x89I\x06f\x0fm\x18\xb6\x81n&gt;\'\xdb\xc4\xd5\xcb\x8f\xb1h\x1b\x8eO\xcf\xd8\x8e\x9b\xaa\x85%\x8a\xf1\x05\xe9\x1a\xa6aG\x8a\x86q\x18Y/z\x8c*\x97\xaf\xacI\xc0\xf5kW()\xb3\xdf\xed\x11c\xf9\xd8\x97&gt;\xca\xc1\xa5\xcb\xecw{\x88\x13\xed\xf6\x8c\xe1\xfc\x9cR23ky\xe4\xf1GY?\xf4\x10\xa7\x9b\x13\xde\xf3\x9e\'\xb9s|\xc2\xe9\xbdc\xdc\xe8\xb1\x8b\x8e\'\xae?\x0f\t\x03\x03\xf1Ckg\xb98\xa2\x16\x1e\xbf\xb4d\xd8\xec8\xbbg\x98\xcb!\xb2r(\x8e\xe2,c\xd72{\xe8\xf9\xf75\xbf\xbao\xc0j\xda\x8e\xae_\xb0\xcb\x85y\xd71\x84\xccb\xbed\xb6\xb8\xcc~\x08\x98fb?\xee\x18\xc7\x91m\x9c\xd8;O/BJ\x11\xd39\xce\x86\r\xeb\x835!U9mu\r\xbei9\xb9u\x8f\x18G\x1e\x7fd\xc9\xa2\xf5\\\xe9\x1bV\x97\x0fx\xb7\xf1\x1c\x0f[\xae\x1f\x1c\xf0q/}\x01\xd3{\x9f\xe2\xec\xee\x1d|\x11\xb4o\x99\x1f\xcc\xd8\xc7-\x97\xaf^\xe2`=c3\x9cS\xce&amp;n\xdd\xbe\xcd\xf3\xaf]&amp;\x0f{L\x08\x14[\xb5$:\'H\t,W\x1d\xbe\xf3\xc4}`\xbd\x9cs\xe7\xe9gH!2\xa1\xc8\xe6\x8c\xb3\xa3S\x1a\x11\xb0pztD\xd7X\x96\xab%W/_\x01W\xd8\x9e\xde\xe4\xf2\xe1\x8a\xfd\xdc\xf1\x8a\'^\xc1\xb2\x9f\xb1Z\xad1\x0e\xf2\xb4\xe7\xe8(P\xa6\xc4&gt;$"p\x96\x13\x8b\x99\xe5\x92-\x90\xeb\x1e\xa2QpM\x87\xe9\x12^\x94\x9c\x0bW\x1f{\xc1}\x05\xd5}\x04\xd6\x0c\xf1s\xc45X\xe7p\xa5\xe0\xbc\xa5\xef\x1c/\xbf\xf1\x18\xe5\xfdO\xa3&amp;q\xebN`\xbb\xdd\x12/\xf5t\xde_\xb41\x12E\r\xb7n\xdf\xc5\xe1x\xfa\xe6\x1d\xcew\x91\x90\x85m\x8c\xbc\xf8\xb1\x87x\xdeC\x8frrrB\x1c\x06tP^\xf5\xd8uB8d\xb6\xe89\xba\xf5\x14\xa6\xe9\xb9{t\x84\x86\x0c\xa6`g\x9ekW\x0e\xb8\xf5\xcc3\x98r\x15g\x1a\xbc\xef\xab\xef\xe0|\xc0\xf6}\xd5\xc6\xb2\x86\x92\x02\xaa\x99~\xd62\xe4\xc2\xad{w\xd9\x0f\x01W,9\x81Z\x0b\x1ai\x9b\x06\x8b\xc7\xe4\xc2$\x8a\xf1\x80sLS\xe0\xf4\xf4\x8c!M\xf8\xce\xa39\xd6%\x0c\x89\xf8V\xe9;\xd8\x0f;\x8e\xef\xdcb?\x05\xa6\x08\xa9@*\x99\xde*\x1f\xf3\xa2G\x19\x8f\xee\xe1\xa8\x042(]\xd7\xb19\xbf\x83\xe9\x0fi\xd6\x97\x99\xad\x0e\xee7\xae\xee\x0f\xb0\x8cs\\\x7f\xe2%l\x9fy\x12+\x82\x0c[\x94X\xc7\x88\xc7\x81\xa6L&lt;\xef`N\x93\xea\x90\xd64%:\x0c\xad\x85\xc6{r4Lad7\xed\xe9\xe7k&amp;&amp;\xca0q\xe3\xb1Gy\xfc\xb1\xab\xac\xb2\xd0\x8brt\xa4\x14\n\xdba\x0b%\x13\xcf\xf7\xa8\x16\xd2v\xacT@N\xcc\xba\x8e\xcdf\xc34\xee@\x13&amp;\xe4:x\x98\nP\x05EL\xd3"6\xa3Z0\xe2\x99\xcf\x97\xf4\xcd@\n\x81)g\xc4:\xa6\xb1\x82\xa9\x94\x89\x99o)cf\x8c\x13\x12\x13Z\x0cA3</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45489</v>
+        <v>45492.6721875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>784889</v>
+        <v>784982</v>
       </c>
       <c r="B10" t="n">
-        <v>1957</v>
+        <v>1966</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ramón Díaz</t>
+          <t>Roger Machado</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9czTXtRaw profile type xmp\x00\x00H\x89\x95VK\xb2\xa30\x0c\xdc\xeb\x14\xef\x08\xb6dK\xf88\x14\x98\xddT\xcdr\x8e\xffZ\x86\x04\x12\xbe\x13\n\x13\x83,\xb5\xda-\x01\xfd\xfb\xf3\x97~\xf0\x8b,L2X\'\xbdu:Z\xd0Q\xb3%\x8d\x1c|\xae\x83V\x13\x7f&amp;#\x9bFM:)k\x96~\xbe\xff\xb6\x9e\xd8\xa4R\xe89|\x1ep\xcdX\xa4\xd2gN)\xe9\x97\xdb\xf9\x99\xbb\xee,\xe1\x08\xd2\xc3\xd5D\xd6~\\\rV\\u\x82\xa1\xf1$Q\x8a\x1f\xf8\x17\x841\x02&lt;\x8f\xb3\x13\\\xc5\n\xdc\x02\x8du&lt;z\x00\x16rX\xa1\xbf\xc2\x05P\xd9D\x05\xf3b\x01\xcb\x0bR\xac\xc0\xb9&lt;G\xd2\xac@\x84&lt;\x1d(\xdb\xde\xd96%,\x92}Bp\x9c\xe1p\xe0J\xafd\xdc\x10c\xc6\xc2\xec4:t@F\x92\\e!\xf4\x08w\x0b\xd0["\xc0M\xbe\xf8\xd8\xec\x9d^\xd4\x01\xc8/l\x08\xa0\x07-\xaf4\xda,jU\xf34\x1a\x95`H\x15\xb4fw\xe5\xb8Rn6\xdcr\x89Xb8\x05\xa9qpc\x8c\x8aG\xd0\n\x12\n&lt;"\x16c\xc7\x06\x9e\xde\xa4"\xe01&amp;\xb7\xa1{\xe83\x7f\xce\xc3\x15\r\xb4\x8dy\xbc\xd1\xcf\xe4Aw\xfax*\x0fJ\xb1\xe9\x02\xce\x94\xf7:i\xaa\xad\xba\xb1q\xc7K\xc8\xaa\x82\xeb\x08+\xd4!\xbd\xb5\x12\xce\xb5\xf2\x11\xcc\xf9\x84\xc2\xbe-\xe9\xabL\x05\xf9\xc6kM-rYf\xe8\x19\x11y\x83\xa3\x9c\x93\x81#\xec\x05\x12\xcb\xdc\xe8\x9e\x9a\xf0\xe1\xf4!F\xf1\xed\xcf\xce\x00Fl~S\x0e\xa3\x0b\x8c\xb8\x16\x8cQ\xc4wu\xbfl\xbbj\x0eD\x97\x91\xb2\x81\xfaTZ\x10\x93\x02\xc9&amp;I\xd2y{ka\xbc\xd5@\xfd\xb8g\x84\x98\xd0\xb1F\xdc\xee\xbc\xd7@zI2\xdcd\xa4\x06\x1e$\x82\x89\x02\x9c{d\x9b0\xa1\xa7\xdb\xfc\xe1}\xc1\x94\xe1\xceO\xc5X\x10\x18A\x1c\'f\x9d\xcc\xca&gt;[zOs\xf6\xdat\xec\x1d\xbd\xf7\xac\x1e\xc1_\rW\xbb\xe3z\xa4g\xb5}\xaf2\xda%v\xa8\xdbo\x97\xfb\xf2\xa6\xe7\xf5}]\xde\xf4\xbc\xbe-\x1c\xbf\xd1\xe6\xc2\xa6\xf5\r\xbaV\xf3\xbcd)f9/\xe6\xc55\xe8\xb0L\x00\xday\xf7E/\xeeu\xf2\xee\xeb\xcd7\x15\xeb\r\xf3\xc6\xcb\xc6|\xb5\xfevLw$&gt;\xe5\x90\xee\xdf\xa1\xcf8\xa4\xd7\x97\xc8yw&lt;\xe0\xb0C\xed\x87\xcf\x86x\xfc52\xbb\xde6\x0c$\xef*\xc71\x80M\xf1w\x9f\xe1m\xd7hi\xd6tn\xfe\x7f\x92\xa4\x95\xce\xcb\xe2h_J\xa7V\xf8T\xa3\xcfo5\xe4\xfa\x0b~\x118zqe\xc8\x98\x00\x00~bIDATx\xda\xec\xfdw\xb8n\xd9U\xde\x89\xfe\xc6\x0c+|q\xef\x13+\xa8T*\x1de\t!\x92\xc9\xd9\x80\x1cp\x00l\x03\xedtm\xe36\x8e\\\xe3\xd4}o?\x97n\xd3\x0e84\x17cn;q\xdb`c\x8c\xb96\xc8`\x82\x08\xc2\xc8\x80$\x82\x10HXB*\xa5\xaa:q\xc7/\xac\xb5f\x1a\xfd\xc7\xdc%\x83\xe1\xb1\xb1\xaf\xeds\nz&lt;\xcf\xfe\xef\x84o\xaf\xf5~s\x8e\xf1\x8e1\xdeWTU\xf95\x1e\xff\xfe#\xc8)\x93r"\xc5\x08\x02\xd6Z\x9c\xf38\xe7\x00\x10\x91\xfb\xfd\x91\x1f\xf8p\xf7\xfb\x03\xdc\x8f\xf8\x85@\x1a\xf6{\xde\xfe\x8e\xb7\xf33o\xfdI\xde\xf1\xf6\x9f\xe3|\xbb\xe1\xd6\xed\xa7\x99B`\x9a&amp;\xba\xd6\x818\xfa\xf9\x82\xc7\x1e{\x1e\x9f\xfaI\x9f\xce\xc7}\xdc\xc7\xf3\xf0#\x8f|\x08`\xff\x17\xd0~i\xc8\xaf\x95\x13KU\xd1\xa2\x9c\x9c\x9e\xf0\xf3\xefz\x17?\xf2\xa3?\xc2\xbfy\xe3\x0f\xf3\x8e\x9f\xfd\x19\xce7\xa7\xcc\xdb\x0eM\tk\x1cj\n\x8ab\x9d\xc3{\x03\xc60\x9f-\xb1FH\t2\xc2\x8d\x1b/\xe2\xe3&gt;\xfe\x13\xf9\x84O\xfcDn\xdc\xb8\xc1\xe1\xe1\xa5\xff\x0bh\xbf ~U\x03\xeb\xd9_\xed\xe637y\xfd\xeb_\xcf\xf7\xbe\xfe{x\xebO\xfd\x14\xc7\xc7G\x88\x11\x9a\xc6\xe1\x11V\xb3\x9e1\x8e(\xca\xba\x9b\xd18\x0b\x08\xa9$\xa6\x92\x00\xa1\xb3\x9e\xd6Z\x86\x92\tI)\xc62\x9f\xcf\x99B`\xde\xcfx\xc5\xab^\xcd\xa7\x7f\xc6g\xf2i\x9f\xfe\x19\\\xbe|\xb9&gt;\xdc_\xc3\x00\xfbU\t\xacR\n\xb7o\xdd\xe2\x07\xbe\xff\x07\xf8\xe6o\xf9\'\xbc\xe5\xcdof\xb7\xddb\xad\xad/\xdb\x18\x9cs\x18\x03N\x84E\xd7\xd0\xf5\x1d)FZ\xe7Xx\x87m:\x90B\x88\x11\x01\x9c\xd4\x9fM\x9c\xb0\xcd\x8c\x92\x85)L\\\xb9v\x9d\xf3\xf3\x1dS\x98\x18\xa7\x89G\x1e{\x94O\xfd\xb4O\xe5\xb5\x9f\xf3\x9by\xf1K^\xca\xe1\xe1\xe1\xafI\x80\xfd\xaa\x02\x96\xaa\xf2\x96\xb7\xbc\x85o\xfc\x86o\xe0\xf5\xdf\xffz\x9ey\xfaiP\xc5\x19\x835\xe0\x8d\xa3\x18\xf0]G\xd1L\xce\x99\xbe\xe9\xe8\x9ca\xd68\xe6}\xcf\xbci\x89qb\x8a\x99\xa6w\xcc\xba9\xbb\xdd\x96R"\xeb\xc5\x9c\x10"S\x08\x80\'\x0b\xc4\xa2d5\xecw#9%\x06\x0f\x8b\xd9\x1c\x8d\x89\x87\xaf=\xc4g}\xf6g\xf3\xbb\xbe\xf0\x8by\xfe\x0b\x9e\xa8\x0f\xfc\xd7\x08\xc8~U\x00+\xe7\xcc\xbb\x7f\xfe\xe7\xf9\xdb_\xfb5\xfc\xb3o\xfdg\x0c\xe3H\xce\x05c\x0c\x8dst\xc6\x90\xb5\xe0\x9c#\x94\x88XK\xe3&lt;\xceZ\xbc\xf3t\xd6\xe1L\xc2\x1a\xa1\x11\x8bs\x8e\\2b\x0b)&amp;\xa4m\t1r0\xeb\xe9\x9b\x86\x1c\'\xf6\xdb\x01\xdb\xf5\xecc&amp;\x84\x82`\x18Sb\xa00\r#\xa8`\x8d\xe1\xd2j\xc5b\xde\xf1Y\x9f\xf3\x9b\xf8\xc2\xdf\xfd{y\xe2\xc6\r\xac\xb5\xf7\xfb\x91\xfdW\x8f\xe74\xb0T\x95\xcd\xf99\x7f\xf3o\xfcu\xbe\xe1\x1b\xfe\x0f\xa6q\xcf4E\xb2*b\x1d\x02\x080s\x9ez\x03\xd6\x97-N\xb0\x9aY-z\xd4:\x0c\x8eUc)%\x90\x92\x82u\xe4\x141N1\x08\x88P\x8c\xe0EX\xf8\x96F2\xfba\x8f\xf8\x16u\r\x9b\xf3=\xc5xb\x86\xcd\xc9\tc\x8c\x8cY\x11g\x11U\x0e\x16\x0bB\x9aX-\x0f\xf8\xac\xdf\xf8\xb9\xfc\x89/\xfb\xb2_TU\xfej\x8c\xe7,\xb0J)\xbc\xe3\xed\xef\xe0\xcb\xff\xf4\x9f\xe4\xc7\x7f\xfcMX\xb18\xebq\xde1\x85\x88k\x1aRJ\xf5\xa4*\x8a\x17\xf0\xd6\xd24\x9ev\xe6q1\xd1\xb7\r]\xd3\xa0\xbe\xc1\x8b\xb0\xee;\xee\x1e\x1da\xfb\x9e\xf5z\xc5\xe6\xec\x84R\x12M\xe7I9\xe2\xbdg\xde\xcc)a`;\xeeX\xccW\xc48aC\xe6L!\xe6\xc2f\xb3e\xbb\x99\xd8\xee3\x93\x08\xa6\x81\x99kq\xaeV\x97\xae\xed\x98/\x16\xfc\xbe\xdf\xf7\x07\xf8\xc2/\xfe\xef\xb8v\xed\xda\xafJ\x80=\'\x81\xa5\xaa\xbc\xeeu\xaf\xe3O\x7f\xf9\x97\xb19?\xc6\n\xe4\x0c\xc6\xd6j\xae\x14\xa51\x0e\xdf\x19\xc6\x18\xb1\x08&amp;$\x16mK?o\xc9\x9aY\xb6-F\x04)\x8auB\xd3x\x96\xdd\x9ca\x18\xd9\x87\x89\xd5\xb2\xc3#\xe4\x02j\x128OJ\x05+\x86\xd6\x1a"JI\x05\xab\x13\xf3\xd6\x93\x8d\x10Bf\x9a&amp;v\xdb\x81m\x14\x9e9\xde1i\xa6\x14e\xd6wH\xc9\xa8q\xac\x0f\x17\x0c\xc3\xc8\xa5\xcb\x0f\xf3\xe5\x7f\xf6\xcf\xf3y\x9f\xff\x05\xff\xae\xb0\xf8U\x12\xcf9`\x95R\xf8G\xdf\xf8\x8d\xfc\xb9?\xf7g\xe9\xe7\rW/\xaf\xd8\x1c\x9f\xb1\x1d\x03!eJ.\x88*\xad5\x88\x14\x96\xeb\x05\xc6\xb74\xa5\xd0\xa0\x18#\xf4\xfd\x9c\xd3\x93c\xe6\xb3\x9e\xb6m!G\xbc\x81+\xcb\x15\xe7\xfb\x81}\x8c\xe4\x9cx\xe8\xfa5\xa6q\x8b\xb5B1\x1e\x87%\x85\t\xeb\x0c1)\xd6:\xceN\x8f\xb9ri\xc5~\xb7\xa5\xe9\xe7\x90\x0bZ\n\xb9x\xdew\xeb\x88m\x8e\xe4\x9cI%_\xe4V\x96\xf5z\x85\xb1\x8e\xdbw\x8f\t\x9a\xf9\xad\xbf\xf5\xf3\xf9s\x7f\xee\xcf\xf3\xc2\x1b7~\xd5\x80\xeb9\x05,U\xe5\x1b\xbf\xf1\x1b\xf93\x7f\xe6O\x93R\xc2y\xb0R\xb0\xc5RT\x18s\xc2hb\xee\x1d\xadU\x9c4\xccVs\xe6\xab\x05\x9e\x82M\x89\x82\x12\xc6D\xa1\xd4k\xae\xe9)\xce"Fx\xd1\xf3\x1e\xe6|8\xe3\xe4d\x83N\x85+\x87\x07,W=E\x0b~1\xe7\xe6S\xef\xa7\xc3blC\xe7[\xc6} \x929\xdd\x9d\xd2\xf5\rE\r\xae\xeb\xd9\x9f\x9d\xb1\xb43B(l\xa6\x81"\x85Qa\xbfO\x18\xeb1\x14\xda\xb6#(\xdc\xdbl\xd8\xee\x07\x1e~\xf8\x11\xfe\xca_\xfa\xab\xfc\xb6\xcf\xfb\xbc\xfb\xfd\x98\xff\x8b\xc4s\x06X\xaa\xca\xbf\xfa\xce\xef\xe4\xf7\xff\x81\xdfG\x1a\'\x9a\xb6\xad&lt;\x94\x05\xab\x82\x88\xc1\xb6\x0eM\x03sg\xe8\x05\xd6\xb35\x93\x17r\x11\xe6\xcea5\xa1\xc60\x9f/\x89\xdbsR\xce`\x1cE\x84)eT\x94+W\x0f@,\x9dZ\xc6a\xcf\xf3o&lt;\xc6z9\xe3\xe9\x0f~\x90+\x97\xd6\xdc\xbdu\x8f\x103\x07\x07\x07\xdc\xbay\x13?\xeb\xb8sr\x8c\x18\xe5j\xb3`\x8f\x10DaH8k\xd1\x92\x18C`T\xc1\x98\x86\xf9b\xc9\x07&gt;\xf8\x14c\x88\\\xba|\x95{\xfb\x1d\xc7g\xe7x\xe7y\xe1\xf3\x1f\xe7K\xff\xd8\x9f\xe2\x8b~\xf7\xef\xfeP_\xf2\xb9\x1a\xcf\t`\xa9*?\xfc\xaf\x7f\x98/\xfe\xef\xbe\x90\xf3\xb33z\xef\xf0]C)\x05A\xe9\x9cc\xd6\xb5\xe4\x9cX\xb4\x9e\x855\x98\x92\x98\xcf=\x81L\x10GSZ\x1aM\x98\xae\xc57\x1e\xb1J\t\x05\xab\x9e!M\x98F(Z\x987=\x8d\x11RT.]\xbfF1\x85\'\x1e\xb9\xc6\xee\xe4\x94\x93\xe3#\x92\x11J\x12\xacU\xc6qd\x9cF\xb4(\x9b\xed\xc0\xd5\xcb\x97\x11U\xb6a\x83\x95\x9a\x93\xe5\x1c/\xa8\x0bKTe?LLCa\x98\x02%\x16t9\xe3\xce\xbd3\xa6)\xd1\xb5\x1d\x8b\xf5\x9a\xdf\xf3{\x7f?\x7f\xf4O\xfcI\x0e\x0e\x0f\xef\xf7\xa3\xff\xcf\x8e\x07\x1eX\xaa\xca\xbb\xde\xf9.~\xd3o\xfe\r\xdc\xb9{\x07o\x1d\x16E\xa5\xd0x\x8f\xb7\x96\xbe1&lt;r\xf5*)\x05$eL\xc9d\xcd\x17\'\x9a\xd2\xfa\x86P,W\xe6\x0b\xc6\x1c\x91\x92h\xe63|;ci:\xce\xa7s\x8eO\xef\xb2\\\xaf\xe9}\x8b$\x85\x02\xd7\x1f{&gt;\xf3\xe5\x8c;\xcf|\x10\x03\xe4\x12q\xce!%#\xce\xd1\xf7=g\xf7N0\xc6q|\xba\xe5|\x7f\xce\x95K+\xdaV\xd8\xed2\xf3y\xcf\xb8\xdf\x13c\xa2\xb1\x96H\xe4\xeclG\x8c\x86\xa2\xb0\xdbG\xcerd\x18\x0bqJ\x84\x94if3\xfa\xae\xe3\x89\x97\xbc\x84\xbf\xf6\xd5_\xcd+^\xf1\xca\xe7d\xde\xf5@\x03KUy\xf2\xc9\'\xf9\x1d\x9f\xff\x05\xbc\xeb=\xef\xa4i=\xde\x18$\'T\x04/\xb0\xeaZ\x0ef\x1d\xcb\xf9\x82~\xe6\tiD\x93 \xadgL\x03-\x86^\x85\xe0\x85\x10\n\xadq,\xfa\x8en&gt;\xa3d\xa55\x96\xa0\x13Ea\x1c\xf6\x1c\x1e,Yv+\x9co8&gt;?c\xd6\xcfh\x1b\xc3\xed\xdb\xb7\xe8\xbb\x86\x87\xd6+T\n\x88\xc7\x00\xa9D6\xa7[\xbc\xb1\x9c\xe5\x89i\xb7\xa3\x9fu\x84)a\x0c\\\xbbr\x95\xe3\xdbwh\xbcc\xbd^pt\xf7\x88\xbbg;&amp;)\x8cQ9\x19&amp;l*h\x82M\x84A\x1c\xab\xf9\x8al3\x87\xd7\x1e\xe1\xff\xf9?\xfeO\xfc\xfa\xcf\xfel\x8c1\xf7\xfbu\xfc\'\xc5\x03\x0b,U\xe5\xee\xdd\xbb|\xfe\x17|&gt;o}\xebO\xb1X\xcc\xe9\xbcArF\xc40\xc5\x89E\xe3\xb8\xb2\x9aC\xce\xb4\xde\xd36\xc2r\xb9 \xa9%\xeeG\x9cS\xd4z\xda\xa6!\x95\x84\xb1-%F(\x99\xacJs\xc1\xba7\x8dC\xacc\xd8\x9dR$1kfx\xdb1_\xcd\x18\xf6\x81\x1cG\xb2f\x1a\x03\xab\xc6\xd2\xcef\\9\xbc\xc2\x18\xb7XQN\x8f\xf6\x84\x10\x91U\xcb~\xb7A\x8b\xc1\x8bp||\xc2\xe5K\x07\xf4\xce0\xee\xf7\\\xbe|\x89a\xbf\xe3\xde\xf9\x8e\x89D\x0e\x85g\x8e\xcf\x08)#\xc9po*\x9cgXv+B\xaey\xd9\xa2\xed\xf8_\xfe\xd2_\xe6\xb7}\xde\x17&lt;\xa7N.\xfb\x15_\xf1\x15_q\xbf?\xc4\xbf\x1f\xaa\xca\xcd\x9b7\xf9\xa2/\xfaB\xde\xf2\x96\xb70\xeb;\x0c\x05I\x99\x18GZ\x07\x9d\x08\xad\x13\x9c\x81\xbek\xe9{\x0fF\xc9Y88&lt;\xa0[\xcc`\xca\xa8*c\x08h\xcc\x94i\xc4;\xc16\x8ev\xde\xa1\xb90\x9eo\x80\x82\xb1\xca\xc1z\x01I)\xb1\x10r\xa2\x94@)\x06\xcd\x89i\xd8#9\xd1w\xb6\x02s\x1a\xe9[G\xdf\x815\x8e!\x07\xac\x15D\xa0\xa4\x8cs\x86\xf5jNJ\x81\xab\x97/\xd1x\xcbr\xe6i\x9da1k\xf1F\xb1%U\xee\xcd\x08\xdeX\x0e\x9a\x8eb\r"J\x96B\xc8\x19%\xf2\xc3o|\x03\x8f&gt;\xfa|^\xfa\xd2\x97=g\xc0\xf5@\x9eX\xc30\xf0E_\xf8\xbbx\xfd\xf7\xbd\x9e\xa6i\xe8\x1a\xc7\xac5X\x11T3W\x96sV}O\xdb\xb5\xc4\x14\xf0\x08\x8bE\x8710\xed\x12c\x98x\xf8\xb1G\xe9}\xcb\xcd\xa3\xbb\xe4\x941\xb9\xbeH\xeb\x04\xd3yZ,\xad\xefI\x14v\xdb\r\x82\xd2z\x87w\x1d \xec\x86\x1dHf\xd9\xafY\xcd;\xce\xb7\xc7\x940p\xd87,\xe73\x9co\xf1b\xf0\x9d\xd0\xcffl\xf6\x81\xb2\x0f\x0c\x9d\xc1\x84\xcc\x98\x02\xed\xbc\x83\x94\x99w\xb5 X\xfa\x86R\x94\x93\xfd\x06c\r\xc7\xa7\x1bNN\xb7lc$;G\x8a\x86\xa7n\x9d\xf0\xd4\xf1\x16|\xc7^\x0c\x8b\xd5\x82R\x12m\xd3\xf2\xff\xfd\x07\xff\x88\x8f\xfa\xe8\x8fyN\x80\xeb\x81\x03V)\x85\xbf\xf8\x17\xff\x17\xbe\xea\xab\xfe*\xc6\x18\x9c\xb1\xf4\xce\xb2\\\xceY\xcc[V\x97*\'\xb5\xeeZ\xac@\'Z\xe7\xa7\xaca\xdd\xcf\xd8oG\xf6\xe3HN\x13\x8d1t\xfd\x8c`-\xe3TH1\xe2\xad\xc1\t\x18\x02)\x15\x9a\xf9\x8c\x92\x12\xd3n\x83\xf3-\xd69\x8a\x80/\x8a\x8d\x91\x94G\xbaE\xcb\xa5\xc5\x828\x0e4Fh\x1a\x8b\xf1-\xb3n\x81\xd1L\xd7z\xc4Z\x86\x98(\xde0\x17!h\xa6\x88\xe0\xac\xc3\xa8\xc5ha\xd1\xb5\x18\x1cS\xde3\x86\xc8\xd9\xf9\x8e\xdd.\xb0\x8b\x03\xbb\xa2\x8cS\xe1t\x13x\xf2\xf69\xbb}`k\x94]R|\xd32\xefz\x1e\x7f\xec\x05\xfc\x8b\x7f\xf1:\x0e\x0e\x0f\xee\xf7k\xfa\x8f\xc6\x03\x05,U\xe5\xa7\xdf\xfa\xd3|\xc6g~\x1a!\x04\x00\x1a\xebX\xcf\xe6\x94\x9c\x10\xabd\x12\x87s\xc7\x95e\xcf\xa3\xeb\x15\x0f]\xb9\x84\xf7\x16\xe3\x1c\xc3v\x8bM\xb0\x9b"JAS\x06\x84\xee\xd2\x01\x8aE\x14\xa60b\x05\xc2pF\xc9\x85\x98\x15S,\x9d\xb7\x98\xa6A\x80\xae\xef\xb1\x9aXXh\\A\xacA\xac#\x87\x80\xa6\xc8l\xd1\xa1\xc6a\xf0,;\xf0M\x83\xb8\x06J!\xe5\x84\xf7\x86\xa6\xeb\x19\xc7L\xcc\x11Qp\xd62\xeb\x1a\xc2\x18\xc9)Qrb\xd4\xc4v\x189\x1d\x13\xf7\xee\x9d\xa1\xc6\xb2Wx\xea\xee\x96{\xf76lE\xb0\xdd\x92\xdbG\'\x18\x11\x8c\x16\xbe\xf2+\xff2\x7f\xf8\x8f|\xe9\x03\x7fj=P,\\)\x85\xff\xfd\x7f\xff:\xe2\x14@\xc09\xcbz9\xa7\xc4\xc0b5G\x14r\x1cY8\x83\x95B\xde\xec\x18J$\xcf[\xfa\xc5\x9c\x83y\x87\x0c\x91\xc6\t)&amp;\x9cw\x045\xc4\x98\xd04\xe1\xad\xd2\xb6-N!\x9b\x05\xc5\n\xdb\xed\x16\x9b\x04RB\x92b\x9dE\x87=1\x07\xd2\xcc\xd1\x88\xa3\xa0\x08B\xe3&lt;mo/N\xc8\x86\xd9|A\xe7\x94\x183\xd6\x1a&lt;\x8a\x1aO0\xa0\xa9\xd0X\x87\xa5\x80\x16R)\x8cc-\x02\n\x05\xeb\x0c6\x16\xfa\xd61%\xa5\xb1\x86d-}\xd3rP`\x1f\x13\xd3y`\x7fv\x8e\x03R.`\xe1k\xfe\xd6W\xf3\x1b\x7f\xf3\xe7\xf2\xd8c\x8f\xdd\xef\xd7\xf5\x1f\x8c\x07\x06X\xaa\xca{\xdf\xfb^\xbe\xeb\xf5\xdf\x8dJ\xed\xc39\x11\xe6\xb3\x06\xe3[\xa4(]\x86e7g\xd5\x0b\xebYKo\x0b3\xebh[\x8f\xa3^]F\x0c]\x9b\xf1\xf3\x16_\x1c\xa6u\xc4\xa8$u$\x99\x18v#]\xebQc\xf0\xd6\xb0^/\xb0*\xb4\xce3\xc6\x891\xa5\xfa\xa2\xe7=3+\xcc\xbcg\xdew\x18\x01\x05T\'\xbc3\x98\x06z\xaf\xe4)\xd1\x1aC\xc9\x19u`\xc5\xe0\x8a!%E\xc88\x91:\xca|q1\x88\x14\x8c\xd8\x8b\xd1\x1e\x0f%\xd3R\xe8\xe7s\xb2\x15P\x8743\x06\xbf\xe3\x84\x89L%\x81E\x84\xa2p\xf3\xf6\x1d\xbe\xee\xeb\xfe\x16\xff\xeb\xff\xfaW\x1eh\n\xe2\x81\xfad\xdf\xf5\xdd\xdf\xc5\xbd\x93\x13\x8a\x80\xb3\xc2\x8b_\xf0\x04\x8b\xf9\x9c\xce58c03\x87Y\x18\xe6\xad\xc5\x02\x9dm\xe8f\r\xb3\xc6\xd17\x8e\xd6)\xad\xc9,\x9b\x16\xe7\x1d\xd2\t\xdeY\xe6\xbdc\xb5\xa8W\xd1z\xd1\xd04\x85\xc3\x99\xa35\x99\x86Do\x95\xbe\x11\x16\xbe\xa1\x15K\xa3\x916L\xac\xfb\x96\xf9\xd2\xd37\xd0K\xa1\x95\x82\xf7\x16\xe7,F\n%\x0c\x98\x9c0\x14 \x93\xc9\x14#\x88(\xde\x19\xacu\x14-\xa8\x14, \n \x94\x04\xa5@L\x82\xb3\x1d$\x83s\r\xde4dU\x8a\x14\xfa\xbe\xe1\xea\xb5\xcb8\'\xd8\xfa\x17\x99\xf7s\x16\xb39\xaf\xfb\xf6o\xe7\xee\x9d\xbb&lt;@Y\xcc/\x89\x07\nX\xdf\xf6\xba\x7fA\x18\x07\x8c@\xd7Z\xee\xdd\xbd\xc5\xb0\xddc\x0b\x18\xcd\xac\x1b\xc7\xc3\x8b\x05\xad\x823\xb0\xe8;.-\x16\xf8\xc6\xd1x\xa1u\x86n\xd6\xd0:\xc3\xba\xf3\x1c\xceg\xacf=\xb3\xd6\xb3n\x1d\xd7\x963\xae\xae\x16,\xe6=\x9d\xf3\xf4MC\xdb\xb6\xccf-\xb3y\xcb|\xd5s\xe5\xa0\xe1\x91\xcbk\xae_Z\xe1-x\x01A0\x8d\xa7k\x1c\x9d8\x9c\xf5X\xf5\x90\x15\x8c\x12s\xa1\xf5\x06\xdf\xb4\x18kP"\xb9L\x18\x07\x89\x823\x06P\xc4Z\xb4\x18\xd4*Q3\xd6\xd6c\xb0\xb4\x86\x94\x12\x9a\xeaX\xb3h\xa6\x91\xcc\xccD\xae-g\xf4\xade\xd6\x19 b\xbd\xe1\xe8\xe8\x88\xaf\xff\xfa\x7f\xf0@\xe7Y\x0fL\xf2~\xef\xee]^\xf6\xf2\x17\xb3\xd9\xec\x98\xcfg\x1c\xac:L\x8ctM\xcfj\xde1\x9f5\\\x99;\xae\xb4-e\x18\xc9&amp;qi\xd9\xf1\xf0\xe1\n\xd3\x08\xae\x00\xa5`2LN\x985-m\xd3\xa2\xaaXo\x101HQ\xc8J$\x93\xc7\x08)a\x00\x91\x8c8E\xa4\xc0 \x8c\xb1\xd0/f\xa8UT\x0b\xde\xb5`\x0cF\x14b\xc2\xb5\x1e\xad;\x19\x18\x110-\xc6\x8c\x041\x94T\xea\xb7\xd58T\x0cS\x8e\xb5An;\xc6\x18\x88\xfb\x80\x16%\x97\xc2\xacm\xc1X\xee\x9c\x9dr\xfb|\xc7\xee|BS\xc17\x0e5\xc2\xbd1s\xe7d\xc7\xf14q\xb4\xdd\x93\xd5a\\C\x0c\x01U\xe1\x8do\xfc\x11n\xdc\xb8q\xbf_\xdd/\x1b\x0f\xc4\x89\xa5\xaa\xfc\xdc\xcf\xfd\x1cgg\x1b\xac1\xa0\x858\x0c\xb4MC\xeb\r\xc6$\x8c$Z\xeb\x98\xcff\x14\xef\x10\xb1\x08\x86\x903\xa4B.\x19\xd3\xd49v\xf9\xd0o\x95QM\xe4THQ\xc9!\xa1d\xac\x11f\x9dc\xd9\xb7\xb4\xb3\x06\xdb8\xacX0\x1e\x9a\x06\xef\x1d9\'\x8c\x18\xfa\xd9\x02\xdb54]G;_\xd0-WX\xd7\xd1,zf\xb39\xd67\x88wd\xdb\xa01#\x05\xc4\x98:\xb8\xd78\xe6\xbe\xa5iZ\x9coh|W{\x8d\nZ )Li\xc4[C)\x19q\x06\xacPD\xd8O\x11-\nd\xc28a\x15R\x98\xd0\x94\xc9\xa9\x16\x02\x7f\xff\xef\xfe]J)\xf7\xfb\xf5\xfd\xb2\xf1@\x00\x0b\xe0_\xbf\xf1_\xa3Rg\xd25g\x9c\xa9K\r\xc6\xd6\x97\xbb\\-\x11k89?\'\xc6\x11\xef\x0cS\x9e(\xa9\xd4\x93H\x84)g\xac\xb1X5D\x93\x89\x92\xc1\x08\xaau\xf6\x1d\x01\xb4\xe0\x0c\xe4\x1c0\xce\xe0\xdb\x0e\xc4C3\xc35K\x9a\x83\x15\xed\x955\x87\x0f?\xca\xe5\x87\x9f\xa0[\x1f0_\xaf\xe9g3\\\xdbB\xdb\xe2gs\xb0\x1e\xbc\x83\xc6\xa1^\xb0n\x06\xa6\xc1\x18\x8b\x88\xc373p\x1df\xb6\xa0]\xaci\xdb\x1e\xe7[\xba\xf9\x9c\xc5\xa55v\xd9\x93\xad\xc1\xfa\x16\r\x19\xdd\x06b\x08L%b\x9cA.z\xa2\x87\xebU]\xa2\xa5`l\xa1h"\xa5\x80\x96\xc2\xb7\x7f\xdb\xbf\xe0\xf4\xf4\xf4~\xbf\xba_6\x1e\x88\xaa\xb0\x94\xc2O\xbf\xedg\xea\x88\xb1f\xbc\xf1\x95X\x14\xc17\x1dm\xd3A.` j`1k\x102XH\x9a\x11\xdf\xe2\xacC\xbdc7\x8c\x14/,fs\x1ak\x10UJ\xcc@A\xad\xa7\x901\x02\xbe\x99\x93r\xac=F\xeb\x98\xaf\x97\xa8\x1a\x12\x90K\xc6\xcd\x16XY\x90\x83!\x85\x1d\xce\xba\x8b\x05\x8dD\xb9\xa8\xec"\x06q\x960\xee\x11Q\x9a\xf9\x9cq\x1ap\xaeA\x9b\x86\xd5\xe2\x00\xa1%\xa5\x115\x82k&amp;|\xce\x84aO\x0bh.\x80\xd0\xf6=\xa6\x15R\xa8\xff\xeen\x1a\x89Y\x90\xc6szt\x8e\xb7Jc!c\x88\x12\x899\x12\xa6\xc4\xfb&gt;\xf0~\xde\xfc\xa67\xf19\xaf}\xed\x03\x97o=\x10\'\xd6v\xb3\xe1\xedo{\x1b \x18\xa9\xd5\xd4j5\xc7[\xc1[\xa5\xec6\xb8T\x101\xa8\n*P\x04\xa2B\xf4\x16q\x1e1\x86\xd6\xb5\xf8\xae\xa7\x9bu\xf8\x8b\xf6\x8c)\x96\xa6\xe9\xe8.\xae-\xe3&lt;\xce\xcfI\xc6\xa0\xd6U\xda\xc19\x88\x99q\x9c\xd8\xef\x06R\xc8\x8c\x9b-\xdb\xedM\xa6aC\x1c\x03\xa9\x80\x88\xa3\x99-\xd0\xd9\x02Y,\xe9V\x87\x88\xef\xf1\xcd\x9cv\xb1\xc4\xcd\xe6\xf4\xab5\xae\xef\xc1y\xd48\xb6\xe3\x96\x10"%\xc3\xac\x9f#\xc6\xd1\xce\x164mO\xd3\xcf)\x06\xec\xac\xa7[,\x80\x82\xaa\x92\xc4\x92\x04\x92\x16\xc4;\x8cXz\xd3\xa2\xa9\xd0\xb7\r\xd7\xaf_E\x15b\xca|\xfb\xeb\xbe\xed~\xbf\xbe_6\xee;\xb0T\x95[\xb7oq\xf3\xd6\xd3Xcp\x18\x1a\x81\xddn\x03yB\x86=\xb6\x14\x8c\x81\xac\x8a1\x16k=c\xca8\x1c\xd6x\xac\xf58\xe31\x05\xda\xb6\xc5\xaa\xc5\xd4\xdb\x11u\x1e\xe9\xe6\xe0;\xac\xf3\x18cQU\x9ck\xb1MGVHb)\xb6\xa1\x88@\x81&lt;\x05\x8c*\x9a\x05c:\xba\xd9\x02\xdf/I\x089\x15\xbc\xb6 \rCN\x14c\xc0T\x85\x9aR\xea\xdf\xd1\x0cE\x0ba\x18\xd0\x94\xd9n\xce\xd9oN\t\xdb]e\xff#@\x03\xc6\xd3\xce\x16\x98\xa6\xa1\xebg,g\x87\xa4\x981b\xd0"h\x11\xc4\x18\\\xd3\xe0\xda\x0e\xa3\x8e\xfd\xf9\xc4\xdd\x9bwj\xfe\xa5\xc2\xb7\xbf\xee\xdb\xd9l6\xf7\xfb5\xfe\x92x \xae\xc2w\xbc\xe3\x1d\x0c\xc3\x1e\xc1\x82\x15\xb0\x96\x94\x951\x17\x16\xcb\x16\xd3\xf5\xecB\xa05\xca\xa1s\xecc\xa2\xe9z\x10G)\x10\x8a\xd2v\r]\xd3\x92K\x81\xa0\x84\x90Q\x19(\x18\\t\xd06\xb8Vp\xda\x12\x87\x80J\x95&amp;\x8a\xc0|uH.J\xe3\x0c}o\x89\xd3X{\x86Y\xb1]Gq`\xbb\x8e.+\xfb\xdd\xa6R\x10\x05JJu\x11\xc3{\xca\xa4\x04\rHJ\x84\x18\xf0\xce :\xa0\xbe\xa1i\x0cE\x13\xc7GG\xc4\x90A\x0c\xceY\xba\xf5\x82\xed\xb0c\xd8\xefHc N\x19\xd7\xf4X\xe3X]Zs\xeb\xe4\x041\x85\xae\xedp\x1ef\xbb\tI0HA\xa4PJ\xe6\xce\xdd{\xfc\xec\xcf\xfe,\x9f\xf0\t\x9fp\xbf_\xe3/\x8a\x07\x02X?\xf9\x13?\x89f\x83q\x82X\x8bqu4\xa5_\x1f\xb2\xcf\x89\xb5qX\xef*Ai,4\rN\x14\x93\n\xa2\x86\xae\xf7x\xef\x88iD\x0b\x98\xa2\xa8\xf7\x90\x1b\x9c\x17\x9c\xb1L)\xd18\x0fZ\xc893\xa5H\xf6\r\xcd\xbcGr\xa61\x86"\x9eR\x14\xd7u\x88x`\xc2yG\x8c\x81\xb4\xdb\x12\xb4\xd2\x0fa&lt;C\xf3D\x0c\x03\x18!\xa9EE\x98J\xc0\xc4L.JI\x06\xab\x891F\xbcm\xe8\xe7=\x8d\x9b\x11\xa6\xc8\xf1\xc91\xb9(2\x80N\x11[\xbb&gt;\xb5p\x11\x8b\x88\xe1\xf8\xec\x98\xa4\x99\xc5l\xce\xfb\x9e\xb9\x87\x8a\xe3\xd2\xc1\x8a\xa7\xee\x9e!Ry1((\x86\xb7\xfd\xcc\xdb\xf8\xf8\x8f\xff\xf8\x07*\xcfz \x80\xf5\xd6\x9f~+E\x0b\x16C\xc9\x89a\x97q\x8d\xe7\xf8\xf4\x88+\x8b%\x16@\x85y\xd3\x93%\xd1\x02a\xb7\xa7\x9fu\xf4\x9d\xc5\x9aRII\xcdX\xdb\x80\xb8\xda\xe8\xb5\x81\xb6\x9b\xd5\xde\xa3\x11b\x0eL9\x80\xa9\x04\xac\xa8\xa2\xe3\xc8\x143\xde{b\xce\x98\xb6C\xc5\x00\x85{w\xef\xb0&gt;Xa\xbd#\xe5\tE)!\xd17-Z2\xde82\x82\xf1\x8e\x10Fr\x084\xd2\xe1\xbde\x1f6\x8c\xb10$C#\x8eT"\x14h\xdb\x05\xf3\xf9\xec\xa2_h\x99N\'\xc2nK\xeb\x0c\xab\xd5\x8ai\xdc\xb19\xdb`\x10t\x1f\xe9V\x1d^\x84g\xee\xdde\xbd\xb8D)\xe5C\x14\x83H%X\x9f|\xef\x93\xf7\xfb\x15\xfe\x92\xb8\xef\xc0J)\xf1\xf3\xef\xfc\xb7\xc8E\xd3\x19\x94R\n\xfb8p\xbd\xb9\xc4\xda4X\x1c\xce\tc\xd8\xb2:XC\xc8\xcc\xe63\x9a\xde\x03\x99q\x8cH\'X\xdbS\xb2\x81\x94p\x02\x83F\xca8\xe0s"\xa6\x00!\x80\xb7\x15X\xb6\xc1\x88E\xc4\x13\xe3@\xc9\x13E\x95\\vd\x14\xc13_\xcc\xd0\x9c(q\xc2\x19K\xb1\x8am,\xaeuX\xd3\x12\xa6@\xe7:\xb2(\xdd\x05\x95\x91c\xa1\x11\x87\xa6\x8c\x8a\xd0xG/\r\x93*%eb\xdab|\xdd\xca\xce)c\x9d2\xa5\x89\xa8\x06k\x1c\x07]O\n\x81q\x8c\x18\xd7pr|\x8a\xb1\x19-\x99\xbbg\xa7d\xe30\xb6\xca\x05\x94\x0b}\x88\xa3\xbbw\xef\xf7k\xfc%q\xdf\x81\xb5\xddn9:=\xc6\x18!\xa5\x8c\xa1\xf6\xda\xf0\x8e\xb6\xe9\xd9\xa4\x91&lt;Y\xdc.qy\xe5\xb0F\xc1\t!\'\xdc\xa4d/h\x93+U\x11F\xb4\x18\x0c\xca.L8W\x8b\x81i\x9a\xf0\xceb}\x0b\xde\xd6\xeb\x96\x8cI\x8aq\x0e\x95L\xb1\x16\xa3B\xdb\xb5\x14#X\xd7\x92.Xt\x11%g\xd04`S$\xb9L)\xa96\x92\xb3\xa29\x13B$\'\xa5\xe4H!\xa3j\xf1b\xf1\xf3\x05\x8d\xf5Xc\xd8\x84-8e\x8c#\x89\x86\x12#\xbb\xed\x96iL\xa8\xf1\xb8\x0e\xf24\x91B\xe6\xd2\xc1\x15n\x9e&gt;\xc3~\x0c\x84\x900\xe2\xaa0\xc9\xd5\xcb\x9c\x9e\x9e\xa3:b\xa8\x1d\x85\xa3\xa3#r\xce\x0f\xd4\xca\xd8}\xad\nU\x95i\x1cI)P;2\x85\xac\x85\x9c\x15h8&gt;:g\x9a2\xd3v\x87J\xc6w-\xd6*\x85\tuJ\xb6\x11rB2\x84)3\x95@6\x91\xe2\x14\xd7z\xba\xb6\xa7u\x8en\xee\xe9\xbb\x16\xb1\x86\x9c\n\x14&gt;\xb4:\x86T\xf5&gt;\xcd\x99\x14\x13\x14AT\x08c\xa8\x95^\xcchQ\xc4*\xaeq\x88w\x84\x980\xb6\xc3\xfb\x16LD\xcb\x84\xa9E\x1aX\x0b)a1\xb8l\xa0\x14B\xc9l\xb7\xe74\xde"\x9aY\xfa\x86&amp;\x86*&lt;bl\xa5J:\xc7b\xe198hh\\F\xf3D\xd39\xa6\x1c\xc9\n\xb3\xa6#k\xe6\x99\xa7\x9fa\x18\xeb\xe9\xaaT\xf2\xf7\xe8\xe8\x88\x18\xe3\xfd\xc6\xd2/\x8a\xfb\nq\x11a\x9c&amp;\xc2\x14\xa1\x94\x8b\xdc\x06\x8a1\xc4\x18p\xf39\xe2&lt;!N,{K\xda\xef\xe9./\xc9\xe3\xc0\xccZ\xe6]\x07\xc6\xb2\x1f\'B\xca,\x16}M\xb6s&amp;N\x89N-\xe2\xa8/7W\xa1Zc\x04-\x89\xc6;\xe2\x14Hf\xc2[\x83\xc1a\xdb\x16\xeb\xea\xec\xbcH&amp;\x86\x88k&lt;\xce\nY\x04\xc53\r\t\xef\x1bD\x1c1\xec\xea\xe4A)h\x8a\xec\xa7\x01QA\xc6\x81\x10&amp;\xbc4\xa4iKI\x85\xdc6\xa4\xc6\xd7~d\xe3)(\xe4\x82\x15\xc1{C\xdf5\xac\x963\x0e\xdd\n\x9b\x84\x93m`\xd7\x0b\xb3\xd6\x12\xd5\xe0|\xe6py\xc0\xcd\xa3SR\xae \xd2\x9a\xe1q\xb69#\xc6H\xdf\xf7\xf7\x1bO\x1f\x8a\xfb\n\xac\xaa\x0bZP\xe5\xe2\xe7\xd9\xa4\x94\x8b|\xa7n\xba&lt;|yA\xeb,\xcd\xcc\xb1\x1d\x06$\x1b\x16\x8b\x16c!\xeaD\xe3z\\cH\xe3H\xca\x16\xe7=\x8bY\x87\x15\x88)\x105\x13C\xc0\xa9@\xc9\x18o\xb0\xbeG\x15\xd28"\x9d\xafOB\xa1\x14\x87fA\xac\xd6=E2E\xc1\xfb\x86}\x0c\xa8\x85\xa4\x81&lt;L\xe8\x148\xdf\x07\x96\xab\x1e\xf1\xcaLZ\xc61\xe2\xe73f\xebK\x84\\HiB\x87=N"\xe3\x10\xc8\x19\xbc\xd4)\x85\xb1L\x84aBDX\xaf\xd7\xcc\xfb\x19\x88\xf0\xf0\xb5\x03V\x8b\x11\'#R\x16\xdc&gt;\x8f\xdc9\x9d\xd8^\xe8?\xe4\x9c*g\xa6uN\xeb|{\xce\x14\xa6\xfb\x8d\xa5_\x14\xf7\xfd\xc4\xda\x0f\x03)%\x8aJ\x9dD\xb0\x82\x02\xa2\xc2\xee|\xc3r\xde`\xc5\xe2\xfb91Ev\xbb\xc8\xbc\xedi\x1a\x079\xa0j\xea\xac\x96BH\xb9.N\xec\x03\xc1X\xb2\x164\'\xd4\x19D,\xabnN\xb7hQ\x81\xde\x1b\xfc\xa5\x83*\xd8\x91#\xf4-\xa8\x12\xc3\x1eI\xe0\x8c\xd0\x8a\x90\xe2D)B)\tM\xa9\xe6V9\xe1\xbc\xa7\xebz\x96\xeb\xcb\x88\x8dhj\xd0\xdd\x84u\x95\xe2\xf0\xae\xa5\x97\x86Y\x8c\x8c\xbb-\xae\xb5LY\x89\xc5\x92\x8b@\x1apcd\x9f\n\xddlA\xd6B\x8a#\xd3\x18I\xa9\x9e\xa8\xd7\x1e\xbe\xca\xb2\xeb1\xe5\x1e\xe3&amp;p;\x06\xc4\x08\xa6\x98\x8b\xddF\x01s\xa1\x02\xf6@\xcc\xa8\xfc\xbb\xb8\xef\xd9^\x0c\x01c=Z2P\xc7PD\x0cY!\xa4\x88o\x16\x88\xb7\xe4\x12\xc8S\xa0\xb8L\xb3jI\x06JTL\x86}\x1c\xe8f3\x14K\xc9\x850\x05\x864\xd0.\xe6\xf4\xfd\x02gA\x8c\xb0Z-\xb0\x0e\x8af\xa4\xa4:\xa9\xdaw\x18i0\xf6\xa25\x84R\xd4\xe0\x8de\x0c\x11\x1d\xf6\xb4\xbe\xa3xK7Lh\x1a\xd1\xaeC\x8da\xb6Z\x93\x10b\x0c\xa0\xd0\xcef\xa4\xac\x18\xf2\x85\xc2\xcc\x84\x8aRlA\\\xcbb6cL\x17E\x86\xefi\x9cc\x1a2\x85D\xca#1\xd5\xf5\xff\xfd~\x8f1\x1e\x1b\x12\x9d\x16\xd6\x1d\xf46\xd1]\x9cP\x08,\x97K6\x9b\r\xa20\x8e\x03!\x86\xfb\xfd*\x7fQ\xdcw`\xed\x87\x01\xcdu\xff\xaf\x8a\xe7\x19,r\xd1\x8c6h\xc94\xc5\x11\x87\x11k3x\x8bwJ\xe7=\xe3\x18\x18\xa6\x11\xef\x1cy\x1a\xb0b1\xd6\xd2\xcd\x16\x84q\xa2\xef:\xc4\x14\xa68!\xcer6li\x9c\xc1\xdbZ\xa6\x1b[+Pg\\\xad\x18]\x835\x1d\xaaJ\x9eF\x1ag(}\xad"mL\xf8vF\xf4\x16\x15\xa5\xedg\x04c\xd0\x0b\xfd\x87)\x05B, \x96\x90c\x1d\xeb\xb1\x86v\xd6\xe2\xe7=\x8a`\xa5a\xdd7(sN\xceN\x10\x03\xb3\xd5\x8a\x9c\x02\x9a\x84a\x9c\x98\xf5\x06o[N\xcf\xce\xb1\n%fzq\xcc\xbb\x06\xd8\xd7\xf9w\x0c\xfb\xfd\x1e\x91\xda7M93\x8e\xe3\x87\xae\xc6\x07!\xee;\xb0RJ(\x8a&lt;;S\xceE2,\x8a\xb1B\xdb9\xacIh\x08\xb4\x0b\xcb\xe5U\xcf\xe5\xc6\xb1\xb0B\xb6B0B\x8e\xa5nC\xf7\xbe\x92\xa6\xed\n]E\x8c\x08E#x\xc30NLg\xe7u\x8e\xbe\xeb\xb0\x9d\xe0Rb\xde\xcd1\xed\x8ca;\xd2\xaf\x9b:\xf5\x99\xea\xa3\xb1Nj\xcf\xb1d\xb4$\x92m\x107\xc3\xfb\xaa\x01_\x8ca\x9a\xf6\xa4i\xa4\xc4\x8cQ\x07\x14r\xae\xec\xbeo*u\xa6\n\x14C\xee*\xfd1\xeev\x94)a\xad\xa5o{FU\xa6)\xe2KbW\nE\x0bg\xdbs\xd6\xab\x15SP\xb2+\xacf\x96u\xe78\x0f\x99\x90\r\xb9\xa4\n\xa4"L\xdb\x81\xbbw\xee\xf0\xc2\'^x\xbf_\xe7\x87\xe2\xbe\x03+\xe7\\\x17\x05\xa8\xc9h\xc9\x99r\xd1(\xb6F\xf0\x0e\x8a\x04\xfa\xb6a\xd1[\xac\x14L\xc9\xc4\xb16\xa7\x9dZ\xf6!a{\x07\x06Z\xdf\xd2\xcfZ\x8c\xaf[\xc8hG\xca\x85\xbe]\xa2)\x92b\xc4\xd6\xea\xa0NI\x14\x08!\x82\na\x08(\xb5Q\x9d\xb0x_\xe7\xe2\xc7\xb3\x81&lt;\x06|g\x11\xebp\x16\xf6\xe7\xe7\xa4\x98\x891\x92)\x95\xec\x14\xb0\xaal\xe3H\x18\'\xa68\x91(\x88q\xecv\x19\xeb\xab0\xee\x14G\xac\xf5\\]\x1c\xb0\x9a\xd5)R\xb5\x99\x983\x0eC\x0c#\x90\xf1\xd6\x12\xadP\xacC\xacg&gt;\xefa\x17\xc9\x1a\x7f\xc1\x80\x9f\xe0\x04~\xe8\xfb\xbe\x9bW\x7f\xd8\x871\x9b/\xee\xf7+\x05\x1e\x00`Yk\x10\x03\xa6H%\x1c\x8d\xa1h\x1d\x13\xee\xacaf\x1dW\x16\x0bV^9X\xf6\x182)NX\x89\x0cI8\x8d\x01\xe7\x1b|\xebi{_\xf7\x0b\xa7\x894\xed\x90RY|k\x1d\xa2\xa5\x8a\xdb\xf6\r)\x8c\x88\ni,\xec\xd3\x86\xae\xeb\xe8\xbb\x9e0\xee\xf19\x81Q\xac\xed1\xc9\x10\x87\r"J\x11!\x97\x84k{\xc6\xb8c\x7f\xbe\xa3\x14%\x94H,\x05c,S\x1a\x18\xc6\x89\xdd~`\xbb\xdf\x13\xd52\xc6H.\xc2f\xbb#M\x85\xa6\xb3\xa8\xad\xac\xf9\xc9&lt;\xb0n\xa0_\xccq\xad\xc3\x14E\x86\x01g\x84\xd9\xacR\'Ml(\xba\x87\x0b\xc9pL]\xe3\xb7\xd6\x92K%jmq\xbc\xfe[\xfe\x0e\'?\xff\x16\xfe\xc7\xaf\xfeFV\x87\x97\xb8\x18m\xfc\xb5\t,Ue\xb1XbD\xea\xd5\'Z\x1f\x87\x11f\xbe\xe5\xf2b\xce\xcc;Z\x0b\x9d\xb74\x80\xf3\x1d\x91\x8c+\x1e\x15\xc5Y\xa9\x9c\xa4FRi8\xdem\xb9w\xb2A\t8\xe7\x99\xc6\xc8\xcc{\xfa\xce\x93\xb5`[\x8f-\x99\x18\n\x92\xc0\xcf\x1a\x86)\x10B\xa0\xf7srJ4m\xc3\xb0?\xc2n,y\x1aI!`\x9a\x96\xb9\x9fc\x89LS\xc4\xd8\xca\xd8\xefwu\xf3:ee\x8c\x81\xcd8\x91\xb3e\xb3\x9d\xd8\x84D\xba ccH\xe4\x12)c\x01\x15\x9c\x18\x0c\x16\x95\xc8\xf6\xee\x0e\xdf\xb6\x1c,\x16\x94\x18\xf0\xd4\x93q\xbf\x9bH1\x93B"\xe5\x00%\x82\x1a\xa4\x8e\xc2\x02\x82\x18\xd0\x14!&amp;n\xbe\xfdg\xf9\xd1\xd7\x7f+\x9f\xf3;\xff\xf0}\x05\xd5}\x07\x16@\xd34h\x11\x8a\xd6\xaaPU\xebj\xbdw\x1c\\\x9as83\\\xb9\xd4ac\xc4\x15\x8b\xb7\x16k\r\xa9\xd4\xa5\xd0\xde:\xd4B\x01\xee\x9e\x9cr\xb4\xdb\xb2\x9d\x04I\x99\\\x12\xab\xf9\x82\xd1\x04\xc2\x89\x12SA\xb5p\xf5\xf0\x80\xa4\xd5\xe1\xab\x9f\x06&lt;\x8a\xb3\x06o\x1d\x0f]\xbd\x86m,\xbe\xa9\x1a\x0ea\x1a9\xdf\x9c\x91\xc5\x12\xa6\x91~\xd6\x11S\xa6\xe4\xcc\xd9\xf9\x96\xcd80\xc5\xc8yR\xf6\xfb\x89\xb3\xd3=\xbb1\x13\xb4\xb0\x99\x12\xd9PW\xd5\x9a\xba\xbe/\xa9\xa0\xa9\x10J\xe2\xce\x9d;\x14\xf5X;c\x96\xa0\xa7A\\&amp;\xd9B\xd9M\xf4M\xc7\xd9\xf9\x16#\x96\xc6\x1b\xda\xce\xe2\x8d\x03S\t\xe5\x923\xf3\xcesy\xdd3M\x85\x906\xfc\xec\x8f|\'\x9f\xf5\x05_\x821\xbfFO,U%\xe7\xcc\x1b~\xe0\xfb1\xb6&amp;\xa1\xb9TaZ\xa8\x9bU\xe7g\xe7&lt;\xb1&gt;\xa0\x90\xe9\xbd\xbf\xc8\xc3Jm\xa9\x88%j$\x15\xc5\xa8!e\xe5l\xbb#F\x18\xce\'\x86\x9cp\x8dE7\x81d\x84q\x1c\xc8Y\xd1\x02w\x8fw\xcc\x963\x8c\x17\x0e:\xa1\xb3\x82\xc6H\xe7;Z9f\xb6\xe8Y\xaf+`\xd5*\xa9@\x18\xf6\x8c\xc5`BB\xbcp&gt;\r\x1co6\x9c\x8d\x03\xa7\x9b\xc8X`\x1a#GG{\x9e:9g\xc8\x05q\xa6\x8a\xe9b\xe9\xba\x81\xb6\xb5t\xd6\xe2\r\x88\xa9\x0b\xab\xfb\xc1\xa2&amp;\xb0\xcbu\xca\xe2p\xde1s\x8a\t\x99m\xd8\xe1\x9a\x06\x83aH\x99\xc6*\xceM\xb4M\xc3\xee\xa2\x85\xb3l,\x8f/zz),;E\xc7-\xd3\xb0\xa3\x9f/\xb8\x9f\xd7\xe1}\x03V\x8a\x81\xaf\xf9\xca\xff\x07\xdf\xf2\x0f\xbf\x89\xa5\x08G\x17\x0c\x9fjM\xe2\xf3E\xc5cE\xb0*\xa8\xa9d\xe0T*\xeb\xec\x1b\xa9\xad\x9b\xca\xa62\x0e#\xa7\xbb\x81I\r#\x8a\xb1\x96d,\'\xc3\xc46+\x9b\xf3-!&amp;r\x81\xc6Z\xda\xdd\x80\xf7\x96\xb5\xb7\xaczO\xe7\r\xce\x8f\xa4\x02\xd7\xb4\xd0\x88A\xba\x16\x95\xc8\x94\x13\xc7\'\'\x84\x10\xe8f\x1e\xdfXv!s\xbe\x1f\xb9y|\xc2\xbd\x93\xc4&gt;\x14\xb6c\xe4\xe8|\xcf6f\xac\x08\x07\xae\xe1R\xdf\xb0\x9e\xf5\xcc\xd6\xdd\xb3_)b\x88\x0ca\x82\x141{\x87\xf7\x8eQ\x13\x8b\xe0\x19\x8d\xe2:K\x08\xa1\x8a\x81\xb4M-j\x06\xa5i\x0c\xde\x15\xd2\x14\x00\xc5y\xc3\xb5E\xc3\xe3W:\x98F\x16\xde\xb2L\xca\xb8\xdf^\x00\xeb\xfe\xc5}\x01\x96\xaa\xf2co\xf8W|\xe0\xcd\xdf\xcd\xe3\x0f\xcdx\xe6\xf4\x1e\xd6\xd4\x91^D(\xaa\x84\x14\x11\x99\x91\x8a\x90B\xa6\xed\x1cY\xa8U#\x90c\xaa\x82\xb4\xde\xb3\xd9\xec\x99v\x81\xd3\xfd\xc8P\xa4N\n\xa4Z\xe5\xe5)\x10\x93\x92\xc6\xc8\x102c\x08 \x82\xdd\t\x8ds\xec\xdb\x96\xed,\xf1\xd0\xc1\x9c\xb4\xdbb\x92\xe2D\x98b\xa4\xed\x1bf\xf3\x1ec\x1d\xc9(\xa7\xc3\x9eV[\xda\xd0\xb0\x9d\x02\xa7\xfb\xc0\xd1V9\xda\x06\xce\x86\x89\xb3!`\x8dp\xfd\xd2\x8c\xc7\x1e\xba\xcc\x8b_\xf08\x87\xcb9\xeb\x85%\xe4\xfd\x85\x7f\x0f\xa8\xb1\xdc\xbbwL\xd8\x0eL\xdb\xc0\xf9\xb0\xc5\x94\x8c\xc9\x99\x82a\x1f\x13\x06e\xd6z./g\x1c\x9foh$S&lt;\x95\xf6(u\n\xc4\x8b\xe5\xfaj\xce\xe1aG9+\x1cv\x1d-\x85i\xbf\x01\x1e\xfa\xb5\x07\xac\x9c3?\xf7\xa3\xdf\xcf\x9d\xf7|\x80\xf7\x1f\xedh\xda\x86&gt;)C\xae\xcb\xea\xa8"\xb9\x92\xa5\xa1@\x8c\xc2F\'|k\xf1R\x07\xddL\x86\x143\xc3\x108?\x1b\x98Bf\x98\x12S\x16\x9a\xc6\xe0\xc4p\xed\xd2a\x1d\xd43u\x0cg\xcc\xf0\xd4Sw\xf8\xe0\xcd{l6{\x86}`\n\x89\xedd\x89!\xb0^\xce8\xda\xef\x89\xb6p\xc9.Y{\x83\xee\x06\x92\x16\xdc\xbc#\x8d\x99\x8ca7%\x8e\xc7\x89\x0f\xdc9\xe3\xbd7O\x19\xa7\x88\xc7p\xb0\xe8\xb0\x9d\xa5\x11\xc3f;\xf2\xb6\x9f{\x0fR\xc0\xe7\x84\xa5pxi\xc1\xd5\x87\xd6\\\xb9\xb2\xe4\xb0\xf3l\xa7@\xbf\xec\xc0g\xf6\x9b\x1d\xc5*X\xc1Z[EC\xbc!\x86\x1d%G\x1c\x8aI\xe0M\x83\xca\x9e\xd6\n\xeb\xc6su=\xa7\xe9=n\xefX\xb6\xb5\x9d4mO\xf85Y\x15N\xc3\x9etv\xc2#\x97\x0f9\n\x05#\rI\x03)\x07\xa2\xd6-aP\xc4\x0b`\x88\xe9bN\xbc\xc0t\x91\xe3\x18\xc9\x18\x15r\xa8\xfc\xcfvL\x84\xa0\x98F\x98\xf7\x86+\xeb\x03V\xab\x052\x05v\x9bm%!\x15L\t\\]u\x1c\xb6\rZ\x0c\xbb\x92\xd8\xec\xf6\xdc&gt;\xdaq\xba\x9b\xb8r0\xc7w\x1dP\xaf3k\r\xf3~\xc6\xbci\xd8\xb7\x91\\\nS\x08l\x86\x81\x0f&lt;}J\x08\x99u\xdf\xe1\xadp\x14#Z2\x83Xn\xde\xdb3\x86TGt\x8c\xe0\x8c\xd0\xdf&gt;\xc5\xbd\xf3)V\x9d\xe3\x89\xab\x07\x1c,&lt;\x07\x07s\x96\xcb\x19N\n\x8doX\xf5-\xb2\x1b\xb9r\xf5\x10k!\xc4H\x94\xccda\x9f\xa0i=\x0f]\xbfL:\xdf\xf0\x82k\x0b\x9e\x7f\xd9\xb3\xc0\x93\x9a\x16\xd3Te\x9c\xf3\xa3g*+{\x1fY\xf8\xfb\x02\xac\x14\x06:F\xae\xacg\xbcB-\xb7\x92\xb2)\xe7\x0ccArb\xac#SH\xeb\x10#u\x1e\xdc\n\xde\x08\xb61\xecr!\x9bB\xe7[6\xbbHH\x99)g\xd4\xc0\xc1\xdcs\xe5`\xc9~\x1a\xb9\xfd\xde{\x08=\xcf\x9c\x0f\x0cc\xa4DX\xcf\x1d\x87\x87K\xb2\x8e\xb5\xc76M\\^;bq\xec\xb7\x81\x0f&lt;sNC\xe6\xc6\xc3\x97X.\x97x\x05\x8b2[\xaf\x98/\x95i\n\x1c\x9d\x1csr\xba!\x84\xc8zfY\xce \'\xc7%\xdb\xb0\x89\x13w\xce\x07b\x82G\x1f}\x9c\xe7=\xfc\x10o\xfe\x897a\\\xc7\x95k\xd7\xb8}r\xc4\x07\x8f\xb7\xdc&gt;\xbd\xcb\x95\xa5\xe7\xc3_\xecx\xec\xb1C\xba\xbec\xe1Z\x86\xb33\xba\x87.\xa3N9\xdb\x9c2\x8d\x82\xed:\xc4\x081\x0f\x18\xe7H\xe7[\x16\x9d\xe1\xd1+\x0b\xd6\x8b\x8e4V\xef \xdfy\xda~F\x1ev\x17d\xc4\xfd\x8b\xfb\x03\xac\x14\x89y\xc4Z\xc3\xb2\x07o\x1dS\xee\xd9\x9c\xef\x101\xc4\\\xf7\xeb6C$\x1ff\x10K,\x85^\xb5\xb2\xd4\xb1\xbaJ\x88\xa9JyF\x85Y\xdf\xd0\xf5-\xeb\xd5\x8c\xdb\xf7\xcey\xe6h\xc7\xd9&gt;s\xba=b\x88\xcaj}\xc0C\xd7\xae\xf1\xde\x0f&lt;\x89t-\xd3nG\'\x86\xc3\xc5\x82\xdd8A\x8e\xcc\x0ch\'\x9cm\xf6\xec\xf6#y\x9d\x11\x85\xd6:Z\'\x18\xeb\x98\xf5-S\x1ciM\xc7\x95\xd5\xc4\xb5y\x8fs\x96h\x1a\x9e\xb9{\xcc\xd5\x835\xdd\xe5\x03&gt;\xf0\xde[\xdc\xbd\xf94\xf7\x9e~\x9a\xc6\xc0\x8b\x1f\xbf\xc2\x0b\x9e\xb8\xc6\xa3w\x1c\x1f\xf8\x80\xe1\xe8|\xcbv\x1bx\xd7;\x9f\xa11\xca\xa3\x8f]\xe5x\xb3\xa7=X\xb3\\\xf5\x9c\xdf\xbcE\x98\x94\xa6\xed\xb0\xaeE5QB\xe1\xde\xbdS6\xfb\xc0\xe3\x8f\xf6&lt;\xef\xda\x15\x92\x01m\x141\x85y\xd7\xd3ZK\x99\xee\xff\xd0\xdf\xfd\xe3\xb1T\xb1\x8dG\xa6=\x8dS^\xfa\xfc%\xa7\xe3\x9e\x0f\xde\x8b\xa4\xa4\xecba\xb3\x8b\xe4l\xd0F\x88\xc6b\xbc\xc7\x89e\xe5Z\x86a\x8fi\x0c~\xd6\xb0H\x91N*\xa9x\xf7\xf8\x9c\xb7?y\xcc\xf9T\x13\xe1\x82EMf\xd8\xef\xb8u\xeb\x19\x9ay\xc3\xc7|\xfcGrv\xf44\xef}\xc7{`\xd8\xf2\xc4\xe1!J!N\x03\xbe\xed\x18,\x9c\r\x03M\xe3\xe9\x9de\xd1v8+\xcc\xdb\x96\xe4-wO&lt;\xbd\xf7\\Z\xcd\xb8zp\xc8l1\xe7\x03\xb7nq\xb8\xea\xb9|y\x85\x18G&gt;:\xe7l\xca\xa00o&lt;\x1f\xf9\xf2\x17\xe1\xe2\x9e\x83\xc6r\xf8\xd8\x9a\x9c\x0f\x984s\xfb\xee\x11\xefx\xd7\xd3\xdc&lt;\xda\xf2\xe2\x17&lt;\xc4\x8a\xc2\x07\x9e\xb9I\x1e\x06\x1e:\xbcL+\x8e},H6\x841\xb0\xd9\x8e\x18gxh\xbd\xc0h\xa0\x18\xcb\xe1\xcc2n3\x8a\xc1KO7\xbbt\x9f3\xac\xfb\x04,\xe7&lt;\xbe\xedh:G\x9fz\xce\xc6\tg\r7\x1e9d\x8awH\x18\x86\xf3B\x0c\x85\xac\xc2\xc25\xa4\xach6\x14\xa34mC\xdb\xd6j\xf0\xd2\x95K\xf8\xc5\x82\xd3\xb3=\xdb}\xe0\xd6\xdd\r\xfb\x900V\xb8\xf1\xa2\x87\xd8\x9e\xefx\xfa\xe93\xbc\x16\x08\x137^\xf0(\x8f?t\x89I\x06f\x0fm\x18\xb6\x81n&gt;\'\xdb\xc4\xd5\xcb\x8f\xb1h\x1b\x8eO\xcf\xd8\x8e\x9b\xaa\x85%\x8a\xf1\x05\xe9\x1a\xa6aG\x8a\x86q\x18Y/z\x8c*\x97\xaf\xacI\xc0\xf5kW()\xb3\xdf\xed\x11c\xf9\xd8\x97&gt;\xca\xc1\xa5\xcb\xecw{\x88\x13\xed\xf6\x8c\xe1\xfc\x9cR23ky\xe4\xf1GY?\xf4\x10\xa7\x9b\x13\xde\xf3\x9e\'\xb9s|\xc2\xe9\xbdc\xdc\xe8\xb1\x8b\x8e\'\xae?\x0f\t\x03\x03\xf1Ckg\xb98\xa2\x16\x1e\xbf\xb4d\xd8\xec8\xbbg\x98\xcb!\xb2r(\x8e\xe2,c\xd72{\xe8\xf9\xf75\xbf\xbao\xc0j\xda\x8e\xae_\xb0\xcb\x85y\xd71\x84\xccb\xbed\xb6\xb8\xcc~\x08\x98fb?\xee\x18\xc7\x91m\x9c\xd8;O/BJ\x11\xd39\xce\x86\r\xeb\x835!U9mu\r\xbei9\xb9u\x8f\x18G\x1e\x7fd\xc9\xa2\xf5\\\xe9\x1bV\x97\x0fx\xb7\xf1\x1c\x0f[\xae\x1f\x1c\xf0q/}\x01\xd3{\x9f\xe2\xec\xee\x1d|\x11\xb4o\x99\x1f\xcc\xd8\xc7-\x97\xaf^\xe2`=c3\x9cS\xce&amp;n\xdd\xbe\xcd\xf3\xaf]&amp;\x0f{L\x08\x14[\xb5$:\'H\t,W\x1d\xbe\xf3\xc4}`\xbd\x9cs\xe7\xe9gH!2\xa1\xc8\xe6\x8c\xb3\xa3S\x1a\x11\xb0pztD\xd7X\x96\xab%W/_\x01W\xd8\x9e\xde\xe4\xf2\xe1\x8a\xfd\xdc\xf1\x8a\'^\xc1\xb2\x9f\xb1Z\xad1\x0e\xf2\xb4\xe7\xe8(P\xa6\xc4&gt;$"p\x96\x13\x8b\x99\xe5\x92-\x90\xeb\x1e\xa2QpM\x87\xe9\x12^\x94\x9c\x0bW\x1f{\xc1}\x05\xd5}\x04\xd6\x0c\xf1s\xc45X\xe7p\xa5\xe0\xbc\xa5\xef\x1c/\xbf\xf1\x18\xe5\xfdO\xa3&amp;q\xebN`\xbb\xdd\x12/\xf5t\xde_\xb41\x12E\r\xb7n\xdf\xc5\xe1x\xfa\xe6\x1d\xcew\x91\x90\x85m\x8c\xbc\xf8\xb1\x87x\xdeC\x8frrrB\x1c\x06tP^\xf5\xd8uB8d\xb6\xe89\xba\xf5\x14\xa6\xe9\xb9{t\x84\x86\x0c\xa6`g\x9ekW\x0e\xb8\xf5\xcc3\x98r\x15g\x1a\xbc\xef\xab\xef\xe0|\xc0\xf6}\xd5\xc6\xb2\x86\x92\x02\xaa\x99~\xd62\xe4\xc2\xad{w\xd9\x0f\x01W,9\x81Z\x0b\x1ai\x9b\x06\x8b\xc7\xe4\xc2$\x8a\xf1\x80sLS\xe0\xf4\xf4\x8c!M\xf8\xce\xa39\xd6%\x0c\x89\xf8V\xe9;\xd8\x0f;\x8e\xef\xdcb?\x05\xa6\x08\xa9@*\x99\xde*\x1f\xf3\xa2G\x19\x8f\xee\xe1\xa8\x042(]\xd7\xb19\xbf\x83\xe9\x0fi\xd6\x97\x99\xad\x0e\xee7\xae\xee\x0f\xb0\x8cs\\\x7f\xe2%l\x9fy\x12+\x82\x0c[\x94X\xc7\x88\xc7\x81\xa6L&lt;\xef`N\x93\xea\x90\xd64%:\x0c\xad\x85\xc6{r4Lad7\xed\xe9\xe7k&amp;&amp;\xca0q\xe3\xb1Gy\xfc\xb1\xab\xac\xb2\xd0\x8brt\xa4\x14\n\xdba\x0b%\x13\xcf\xf7\xa8\x16\xd2v\xacT@N\xcc\xba\x8e\xcdf\xc34\xee@\x13&amp;\xe4:x\x98\nP\x05EL\xd3"6\xa3Z0\xe2\x99\xcf\x97\xf4\xcd@\n\x81)g\xc4:\xa6\xb1\x82\xa9\x94\x89\x99o)cf\x8c\x13\x12\x13Z\x0cA3</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9bzTXtRaw profile type xmp\x00\x00H\x89\x95VK\xb2\x9c0\x0c\xdc\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3KU\x969~Z63\xf0\xf8g\xa8\xe7y\x1e\xf4\xe9nK\x02\xfa\xfb\xfb\x0f\xfd\xc2\'r\x8a$\xa3u2X\xa7\x93\x05\x9d4[\xd2\xc8\xc1\xf7:j1\xf1{2\xb1i\xd4\xa4\xb3\xb2f\x19\xda\xef_\xeb\x99M\n\x85\x81\xc3\xcf\x0b\xa1\x19N*C\xe6\x94\x92\xee\xc2\xb6{\x1e\xba\xb3\x84+\xc8\x80P3Y\xfdp1Xq\xd1\x19\x86\xc6\xb3D\xe9\xfd\xc2\x7fA\x18+c\x9dZ\x10|\x8b\xf5\x08\x0b4\xd6\xf1\xe4\tX\xc8a\x85\xe1\x0e\x17@e\x13\x15\xec{\x0bp\xefA\xb1\x00\xe7r\x1f\xa4Y\x81\x08&lt;\x1d(\xdb1\xd8\x96\x12\x9c\xe4H\x08\x813\x02\x8e\\\xe8C\xc6\r\xb1f8f\x97\xd1\xa1\x032Hr\x91E\xd03\xdc5\xc1`\x89\x007\xb9\xf3\xb9\xd9\x97^\xd4\x11\xc8ol\x08\xa0G\xed?4\xea.jQs\x1aUJ(\xa4\nY\xb3\x87r\\)W\x1b\xae\\"\\\x0c\x7f\x02j\x1c\xdc\x18\xab\xe2\x16j\x05\x84\x02O\xc8\x85c\x94\x91\xe7\xaf\xa8Hx\x8e\xc9m\xe8\x19z\xd3\xcfu\xb8\x93\x81\xb69\xcf\x0f\xfa]y\xd0S}\xbc-\x0fJ\xb1\xd6\x05\x82)\x1f\xeb\xa4Vm\xd1\x8d\x8d\x07^R\x16\x15|O\xb0B\x1f\xd2\xb7V\xc2u\xad\xfcH\xe6z\xa2\xc2\xf6\x96\xb4kS\x01\xdfx_SK\xb9,;\xcc\x8c\x08\xde\xd0(\xe7d\xd0\x08g\x01b\x99\xab\xdcs-|\x04}\x89Q\xfc\xf8\xb3+\x80\x15\x87\x8f\xbaA\xafK\xe2\t\xdf\x82\x95%\xfb\xa9\x1e\xdd\xb6^-\x11\xddf\xca\x06\xe9S_\x93\x986G\xc5\x88\xa9\xc3\x04\x05\x9b0j&lt;m\x12G\xe4\x93F:\x11?n\xbf\rc\xc3\x1e\xbf\xfb=\x94"\x1a\x01\xa6Gd\x9b4a\xa0G\xfeH\xbe`\xca\x95*\x03S\x06\x12\x0f\x1e\x91\xb2\xc7\xae\x93V\xd9W\xae\xcf2g\xef\xcd\x8cc\xe9\xe8{f\xa5\xb5\xe8\x95\xe1jw\xde\x8f\xf4\xae\xb7\x9f\xab\x8c\x0e\xc4N\xebv\x1f\xf2\xd8\xde\xf4\xbe\xbf\xef\xdb\x9b\xde\xf7\xb7\x85\xf3\'ZklZ\x9f\xa0k77\x97\xa5\x99\xe5\xba\x99\x97\xd0\x90\xc32\x01h\xe7\xd3\x17\xb3x\xd0\xd9\xa7\xaf\x0f\xdf\xd4\xdb`\xd8W]6\xe6\xab\xf5&gt;0=\x89\xf8VCz~\x86\xbe\xd3\x90&gt;o"\xd7\xd3\xf1D\xc3\x0e\xbd\x1f~\x0e\xc4\xf3\xb7\x91\x16z;0@\xde\xab\x1c\xd7\x085\xbd\xc1\x8b\xe1iWe\xa9\xd6tm\xfe\x7f%I\xab\x9c{\xb7\x87v\xa9\xefN\xab\x1f\xed\xcc\x0eoo`\xff\x0f"K&lt;\x07\x14\xa6u\t\x00\x00w\xe5IDATx\xda\xec\xfd\xd9\xb3\xad\xe9u\xd6\x0b\xfe\xde\xf6kg\xbb\xba\xdde\x9f\xa9L\xb5\xb6\x0c\x96m\xe9\x1c\xec\x03\xb8\x88\x03\xa6\xcc9QAD]\xd4]\x9d\xba\x85?\x81\xbf\xa0\x1c\xa7"\xaa"\xa8[NAA\x01\xa6\x82\xc6\x02\x19\x1b\x1f\xd9\x92@\x12\x96\x94R*\x95\xdd\xde\x99\xbb\xdf\xab\x99\xed\xd7\xbfM]|ko\xcb\xb4\'\xa2\x80\\2\x1e\x11+v;\xe7\x9ak\xbe\xcf\x1cc\xbcc&lt;\xe3\x19"\xc6\x18\xf9\xaf\xd0b\x8c\xd4uMUU(\xa5\x98N\xa7\x18c\xf87\xdf\x0e!\xc4\xbf\xf5\xb8\x7f\xdf\xbf\xfd\xb1\xfd\x81\xe9\x8f\xfb\x05\xfc\x97\xb6\x1f\x07FUU\xb4m\x8b\x14\x12\xa3\r!\rl6\x1b\xfa\xbeG)\xc5r\xb9Dk\xfd\xec1!\x04v\xbb\x1d]\xd7\x91\xe79\x93\xc9\x04)%1Fb\x8c\x84\x10\x10B \xa5D\x08\x81\xf7\x1e\xa5\xd4\x7f\x95\x00\x14\x7f\xd4=\xd6\xd3C\x7fz\xb8\xde\xfbg\x07~vz\xca\xe9\xe9\x19\xd7\xae]\xc3y\xc7\xc5\xf99I\x9arxx\xc8\xc5\xf9\x05UU\xf1\xd2\xcb/a\xb4\xa1i\x1b\xde\x7f\xff}\xde\xfc\xde\xf7\xb8s\xe7\x0e\xd7\xae]\xe7\x17\x7f\xe9\x17y\xe9\xa5\x97\xe8\xba\x8e\xf7\xde{\x8f\xf7\xde{\x8f\x93\x93\x13\x9e\x7f\xfey\x8e\x8f\x8f\xc9\xb2\xec\xd9\xf7\x15B\xfcW\x05\xb0?\xf2\xc0r\xce\xd1\xb6-I\x92 \x84\xa0\xef{\x84\x10\xcf&lt;\xd1\x8f\xde\xfe\x11EQ \x84\xe0\xf4\xf4\t\xd7\xaf_\'\x84\xc8~\xbf\xe3\xddw\xdfCk\xc508&gt;\xfa\xe8#\xdey\xe7\x1d\x1e=~Db\x13&gt;\xf7\xb9\xcf\xd1\xb4\r\xaf\xbc\xfc\n\x0f\x1e&gt;\xe0\xcb_\xfe2\xf7\xef\xdf\xe7\xa5\x97^\xe2\xa5\x97^\xe2O\xfd\xb7\xff-_\xfa\xd2\x97\x10R\x02prrB\x92$\xff\xf6\x01\xfc\x11\x05\xdb\x1fi`\xc5\x18\xf1\xde\x03c\x18\xf3\xce3\xb8\x81\xd5jE\x08\x81\xf9l\xc6z\xbd\xe1\xad\xb7\xdeB\x08\xf8\xe8\xa3\xbb&lt;y\xf2\x98j\xbfGH\xc9\xdd\xbbw\xf9\xee\xf7\xbeG\x8c\x91\xa6i\xd8n\xb7H))\xf2\x9cO\x7f\xe6\xd3&lt;|\xf0\x88\xb6kY\xaf\xd7TU\xc5l6\xa3,K\xf6\xfb=y\x9e\xf3K\xbf\xf8\x8b\xec\xab\n\xad\x14\xff\xe7\xff\xe9\x7f\xe2S\x9f\xfa\x14I\x92\x90$\xc9\xb3\xb0\xa9\xf5\x1f\xcdl\xe4\x8f4\xb0B\x08\x0c\xc3\x80\xd6\x9a\xae\xeb\xf8\xd1\xdb?\xe2\x1b\xff\xf2\x1b\xbc\xf3\xce;4u\xcd\xe1\xc1!7o\xded_\xedy\xfb\x87?\xe4\xfb?\xf8\x01\xb7\xef\xdc\x01 \xcfr\xaa\xba"\x84@\x08\x81\x93\x93\x13v\xbb\x1d\xbb\xdd\x0e\xad5\xce9\xa4\x94$IB\xd7u(\xa50\xc6\xe0\xbd\xa7\xaa*^x\xe1\x05\x9a\xa6a\xb5Z!\x84\xe0\x0b_\xf8\x02\x7f\xe9/\xfd%~\xf9\xcf\xfe2\x07\x87\x07x\xefI\x92\x84\xa2(PJ\xfd\xa1p\xfdG\xc1\xfeH~\\\xfe\xcdC\x1a\x86\x81\xb7\xdez\x8b_\xfb\xbf\xfe\x1a_\xfb\xda\xd7\x80\xc8f\xbb\xc5{\xcf\xd1\xd1!Y\x96svzJU\xd7\x00\xb4m\xcb\xf9\xf99\xd6Z\x92$\xc1{\xcfj\xb5\xe2\xc6\x8d\x1b\xcfB\xab1\x86\xae\xeb\xa8\xaa\x8a\x18#\xc6\x18\x92$A)\x85\x94\x12k\r\xbb\xdd\x16\xe7\x1c\xde{\xbe\xf1\x8do\xb0\\,x\xe3\xf57\xf8\xe0\xf6\x07|x\xe7\x0e7n\xdc\xe0\x8b_\xfa\x12\xcb\xe5\xf2\x8f\x14\xa8\xe0\x8f \xb0\x9e\xde\xce\x9e\xde\xcc\x94R|\xf4\xd1G\xfc\xcd\xbf\xf97\xf9{\x7f\xff\xef=\xfb;\xe7\x1c!\x04\x1e?~B\x08\x1e\xef\x03\xcb\xe5\x92,\xcb\xb8\xb8\xb8`\xbb\xdd\xd2\xf7=!\x04\x16\x8b\x05B\x08\xf6\xfb=J)n\xdd\xba\x85s\x8e\x87\x0f\x1f\x12Bxv\xf3k\x9a\x06c\x0c\xc6\x18\xfa~`:\x99R\x14%\x8f\x1f?f\x18\x06\xea\xba\xe6\x1b\xdf\xf8:!D\xbe\xf8\xc5/rqq\xc1\xfb\xef\xbf\x0f@\x9a\xa6\xa4i\x8a\xbc\xcc\xc9~\xd2M\xfd\xb5\xbf\xf6\xd7\xfe\xda\xc7\xfd"\xfe\xff\xb1\x18#\xc30\xb0\xd9lh\xdbv\xfc\xa1.CK\xd7u&lt;z\xf4\x88\xbf\xf3\xb7\xff6\xff\x9f\xbf\xf3w\xa8\x9b\x86\xc9d\x02@\xd7u\xcf@\xa8\xb5!\x84@UU\x94e\t\x8c^+\xc6H\x9e\xe7Xk\x9f\xe5XY\x96qxx\x88\xb1\x86\xddnG]\xd7c\xfevy\xdb|\xfa\xfd\xdb\xb6%\xcb2\x92$!\xc6@]\xd7l\xb6[\x1e&gt;|H\xdf\xf7\xbc\xf1\xc97\x90R\xe2\x9d\xe7\xde\xbd{\xacV+\x8a\xa2 \xcb2\xe0\'?\xa9\xff\x89\xf7X}\xdf\xf3\xbd\xef\xbd\xc9\xb7\xbe\xf5-\x84\x80\xe7\x9f{\x9eW_{\x95\xa2(xp\xff\x01o\xbd\xf5\x16\x7f\xfd\xaf\xff?y\xf0\xf0\x01\x93II\xdb\x8e\xe1\xae,\x0bB\x088\xe7\t!&lt;K\xf4\x1f?~\x8c\x94\xf22\x9cY\xa4\x94\x84\x10\x00\x90J\xd1v-Jk|\x1f@\x80\x90\x02\x10@D\ny\xf9\xdc%\xc30pvv\xc6\xab\xaf\xbeJ\xdf\xf7H\xb9b\xb3\xd9\xb0\xdf\xef\xb9}\xfb6RI\xfe\xca_\xf9+\xcc\xe7s\xdc\xe0x\xef\xbd\xf7PR\xf1\x99\xcf|\x1a!\xe53\xcf\xf7\x93j?\xb1\xc9\xfb\xd3\x97\xfd\x8d\xaf\x7f\x9d\x7f\xf6\xcf\xfe\x19\x0f\x1e&lt; M3\x10\x90&amp;\t7o\xde\xe2\xc6\x8d\x1b\xbc\xfd\xf6\x0f\xf9\x9f\xff\xe7\xff\x1b\xeb\xcd\x1a\xa5\x9e\x86\x99HQ\x94(\xa5\xa9\xaa\n\xef=\xd3\xe9\x94\xba\xae\xe9\xba\xee\xd2\x8b\xe9g\xa1i\xb7\xdb\xa1\x94z\xf6weY\xe2\x9c\xfbC^\xf2\xe9c\xe6\xf3\xf9X\x07\xbb\xb8 I\x12\xa6\xd3)w\xef\xde}\xe6\xcd\x9csh\xad\xb9u\xeb\x16\xbf\xfc\xcb\xbf\x8c5\x86_\xf9\x95_\xe1\xa5\x97_\xe6\xf6\xfb\x1f`\x13\x8b\xd6\x9aO|\xe2\x13\xcc\xe6\xf3\xf1\x90~\x02\xbd\xd7O\x9c\xc7\xfa\xf1*\xb8\xf7\x9e\xbf\xf5\xb7\xfe\x16E^\xf0\xd9\xcf|\x96r2\xc1X\xc3o\xfe\xe6o\xf2\xbb\xbf\xf7{\xfc\xe5\xbf\xfc\x97\xf9\xeaW\x7f\x97\xd5z\x05\x8c\xc5Q!\xc4e\x05}\xff\xccS\xfd\xf8\x95\xffi\xf2\x1dB\xa0m[\xe6\xf3\xf9\xb3\xeaz\x9e\xe7x\xef\xd9\xef\xf7\xc0\x1f\x84K\xe0Y\xf2&gt;zAG\xd7uXkY,\x16\xecv;\xd6\xeb\xf5\xb3&lt;\xaa\xaek\xd6\xeb5\xbf\xfe\xeb\xbf\xfe\xac\x9dT\xd75\x1f|\xf0\x01\x17\x17+^y\xf5\x15^y\xe5\x95g \xfcI\xbc1\xfe\xc4y\xac\xa7\xd7\x7f\x18?\xfd\x7f\xf5\xaf\xfeUn\xdf\xbe\x8d\x92\x92\x07\x0f\x1e\xf2\xfa\x1b\xaf\xb3\xdf\xef\xf9\xe67\xbf\xc9|6\xe3\xd1\xa3G\xd4M\xf3\xcc\xa3@D)\xfd\xacL0\x0c\xc3%8"O\xdf\x89$I0\xc6&lt;\xcb\x93B\x08Xk\x19\x86\xe1YIa\xbf\xdf?{\x1dJ)\xe6\xf39y\x9esvv\xf6\x0c\xf4RJf\xb3\xd93\xafW\x14\x05\x07\x07c\xa9\xe1\xe2\xe2\x82\x10\x02}\xdf\xf3\xa9O~\x92\xc9d\xc2~\xbf\'\xcbs~\xe1\x17~\x81_\xfe\xe5?\xcb\xab\xaf\xbe\xc6\xc9\xc91\xc6\xd8\x9f8`\xfd\xc4y\xac\xa7\xdeD\x08\xc1v\xbb\xe5\xe0\xe0\x80\x7f\xf4\x0f\xff!\x00\xab\xf5\x9a\x0fn\x7f\x80R\x8a\xba\xae9??\x7fv \xd6\xdag\xb7A\xef=}\xdf?\x0bOeY\xe0\xbd\xa7i\xc6\xb0\xf6\xb4\xe5\xf3\xb4%c\x8cAJ\xf9\xac&amp;\xa6\xb5~\xe6\xed\xac\xb5\x9c\x9c\x9c\xb0\\.\x9f\x15P\x85\x10dY\xf6,\xcf2\xc6\xe0\x9c\xc39\xf7\xac\xf2\xdf\xf7=\x00M\xd3\xf0\xed\x7f\xfd\xaf)\x8a\x82\xe7\x9f{\x8e\x10#\xdf\xfe\xf6\xb7\t!\xf0\xe1\x87\x1f\xf1K\xbf\xf4K&lt;\xf7\xdcs\xcf\x9e\xf7\'\xc5\xae$\xb0~\xdc\x89\xc6\x18\x9f\x85\xa2\xedv\xcbw\xbf\xf3]\xb2&lt;c:\x9d\xf2\xee\xbb\xef\xb2Y\xad\x90J\xd14\r1F\xda\xb6}\x06\x98\x18\xe3\xb3\xd0\x06&lt;\xf3N\xde\xfbg \xc9\xb2\x84\xb2,\xe8\xfb\x9e\xb6\xed\x10B&lt;+E&lt;-^\xb6m\xfb\xac\xf4\xf0\x14P\x00EQprrBY\x96\xcfz\x81\xc7\xc7\xc7\x1c\x1d\x1da\x8c\xe1\xf6\xed\xdb\xcf\x1e+\xa5D)\x85R\x8aa\x18h\x9a\xe6\x0f\x95&gt;\xfa\xbe\xe7\xf4\xec\x8c4M\xa9\xaa\xeaY\x0e7\x9dNI\x92\x84\xe3\xe3c\x94R\x1f\xf7\xd1\xfco\xb6+\t,\x18A\xf0\xe0\xfe\x03\xd6\xeb5/\xbc\xf8\x02\x93\xc9\x84\x8b\x8b\x0b~\xf7w\x7f\x97\x18\x03\xeb\xcd\x86\xbb\x1f}\xc4\xed\xdb\xb7\xd9l6\x7f\xe8f\xf7\xd4\xa3\x01\x7f\x88u\xf0\xe3^Fk}\xe9\x95\x12\x9a\xa6}\x96/\xfd\xf8WUUH)q\xce\xf1\xd4W\xc4\x10q~\xfc\xb3\x92\n\xef&lt;\x0f\x1f&lt;\xc0y\xcf|&gt;G)\xc5~\xbfG\x08\xc1n\xb7{\xf6\xf3\x18c\xc8\xb2\x0c\xa5\x14!\x84g\x14\x9d\xa7\x1f\x82\xbe\xef\x9fU\xe9\xa5\x94\xdc\xbf\x7f\x9f\xedv\xcbt:\xe5\xc5\x17_\xe4\xe0\xe0\xe0\xd9c\x7f\x12\x1a\xdaW\x12XO\x8b\x8d\xdf\xfc\xd6\xbf\xe2\xab_\xfd]~\xe6\xf3?\xc3\x7f\xff\xe7\xff\xfb\x11\x08y\xc6\x9d;w\xf8\xbd\xaf}\x8d\x0f\xde\x7f\x9f\xe62\x7f\x92R""D\xe0)\n\x9e\x82*2z\xae\x10\x03qL\x8b\xc8\xb2\x94\x18\x03RH\xfc\xe0\x18\xba\x1eb$D\x90\xca\x02\\\x16?5yj\x19\xfa\x0e) /r\x94\xd2l\xb7;\x9a\xba\xa1\xef\xc6\x90\x16$\xf4!\x12\x06\x8f\xeb\x07L\xa2\x91r\xcc\xdd\x12cH\x8c\xa1\xebz\xba\xc1\x11\x83\'1\x8a\xe5b\xcen\xdf\xb0\xde\xee \x8e\x85\xd6\xa7\xd5\xfe\xa1\x1f\xf8\xd1\xdb?\xe4\xda\xb5\x13\x1e&gt;|\xc8\x0b/\xbc\xf0,_{\xea1\xaf2\xb8\xae\\\x99\xf7\xe9\xa7\xd89G\xd3\xb44m\xcb\x83\x87\x0f\xd8\xefvL\xa7S\xfa\xae\xe3w~\xe7_p\xe7\xf6\xedg\xa5\x02\x18s\xaf\xe1\xd2\x93\x10\xff\xa0\xad\xa3\x94DIA\x0c\x01"\x97\xf9\xcd@\xd7\xb68\xe7\xd8W\x15\xfd\xe0\x88\xc8KPF\x88\x0e)&lt;ZE\xa4p\x84\xd0\xe3\xa3\xc7EO7\xf4\xb8\x18\x90F\xe1\x82c\x08\x0e\x9d\x18\xe6\xf3\tV\x0b\xac\x96(\t\xae\xef0F\x93\xd8\x844\xcdPR\xe2\xbd\xa7\xc8\x0b&amp;\xe5d\xcc\xd3b\xc4X\xc3tR&gt;\xf3Fi\x9ar|t\xc4\xc1rI\xf0\x91\xb7\xbe\xff\x03\xfe\xc1?\xf8u\xde|\xf3\xcdg\xa5\x90\x9f\x84\xfb\xd6\x95\xf5XeY\xf2\x99\xcf|\x86\xdb\xb7o\x93e\x19]\xd7\xf1\xc3\x1f\xfe\x90\x7f\xf5\xcdo\xf2\xce;\xef\xd2u\xdd\xb3\xff\xfb\xd4~\xfcM\x17\x02\x84\x88\x88\x18\xc1G\xf4\xe5\xad\xcf\x8bH\x9aXD\x0ctMG\x9ae`4\x83s\xc8\x18\xd1R \x89\xa4V\x13\x88D)\x19|$\x00\x11\x89o;\xda\xbe\x7f\xe6\x19\x85\x88(%\x98\x169~\x18\x18:\x87\n\x9e\xdeE\xb4T\xb4q\xc0\x05A\xc4\x13\xbc#5\x02\xa94\xbb\xbdc\xb3\xad\x08\xc1\x91$\x96(\xfe\x807V7\ru]#\x94\xe4\xf4\xec\x9c\xaf}\xed\xf7\xb8q\xe3\xc6\xb3\x1cn\xb9\\rpp\xf0,\xa1\xbf\x8a\x9e\xeb\xca\x01\xeb\xc7oq\xcf?\xff&lt;\x87G\x87|\xeb_}\x93"\xcf\xb9}\xfb6\xdf\xf9\xfd\xdf\'\xf8\x001"~\xec\x868\x0c\xc3\x8f?\tRI \x00\x01\x15#\xa9\x14\x18-\x112\xa0d\x1c\xc3Tn\x19\x9c\xa3n{\x92\x18\xd0B`\xa5\xc0*Ef\x13Z\xef\x10i\x817\x19\x8f\xcf\xd7\xc4\xbe\x1d\xc3e\xf0(\x01Y\x9a\xa0\x84d\xa8j6\x12t\x92R7\r\xfd0\x90\x18\xc5\xa4,\xd8W\ru\xd7\x00\x02\xbc\xa3\xdeo\t\x08z/@*\\\xd7\xe1\xdc\x80\x10\x80\x88\xacV+\xd6\xeb\x151\x8ey\x99\xd2\x8a\xedv\xcbo\xfd\xd6oQ\x14\x05\xaf\xbc\xfc\n7n\xdc\xa0\xef{\x0e\x0f\x0fI\xd3\xf4\xe3&gt;\xb2\x7f\xa7]9`\x01\xcf\x12\xed\xe9t\xca\x17~\xf6\x0b|\xfdk_\xe7o\xfc/\xff\x0b\xbb\xdd\x8eG\x8f\x1e\xe3\x9d\x1b=\xd3e\x1d\xe9\xd9\x0f\xa35\x11\x81w\x1e\x88\x18)H\xa5\xc2\x88@\xaa$\x89\x08$\n\xb4\x16\x04&lt;\x91\xc0 \x02\xa5\xf1H)\xb0\x12\x8c\x08\x18-\x90\xb2c\x17&lt;\x83W8\xa5I\xf0\x14\x93\x1cb\xa0\xa9\xf7\x18%\xc9\xad"I\x12\xaa\xbd\xa3mZ\xaa\xb6\'\xcbs&amp;\x93\x82\xeb\x07K\xeajGi\x05J@\xd39 \xd0u\x1d&gt;@\x10\x12\xa1,Z\x9b\xd1\xeb\x8915\xf4\xde\x8d\x9e\xd5\xff\x01\xcd\xb9\xebz\xde{\xef=~\xf8\xd6[&lt;w\xeb\x16I\x9ar\xe7\xce\x1d\xd6\xeb5o\xbc\xf1\xc6\x95l\xfd\\I`=\xad^\xc7\x18y\xed\xb5\xd7\xf8S\x7f\xeaO\xf1k\xbf\xf6k\xdc\xb9s\x07\xe7\x06\xa2\x88H).\x01\x18!F\xac\xd1c\xbe\x15\x05\x8a\x80\r\x91T@) 1\x91L\tR\t\x99\x8a(\x15\x18;|\x01\x91\n\x82\x17$\x89%\xb3n\xcc\xab\x88D&lt;CTl\xfa\x9e\x96\x1d\xb3\x99\'j\x85\x88\x01\xf2\x844\xb1\x97y\xdd@\x16\xa0sP;G\x12[\x0e\xb3\x94\x85h\xd0n\x8b-%\xbd\xd0&lt;\xba\xa8i{1\xe6UJ \x08\xb8\xd0c\x12\x8b2)\xc3\xd0\xa1/\xebe]?\xd0\xb6\xdde\xa2\xcee!\xb7\xe7+_\xf9\n\xaf\xbc\xfa\x1a?\xfb\x85\x9f\xa3\xaaj...\xf0\xde\xa3\xb5\xber\xe1\xf0J\x02\xeb)c\xf3\xe2\xfc\x827\xbf\xff&amp;\xdf\xfe\xf6\xb7\xff\x80E\x10\x02y\x96&gt;\xab)\xa9\x18\t\x83\x03\xef\x11a\xcc\xa5\x8c\x8c\x94ZP\x88H\xa9!\x11\x91\xd48\x8c\x84\xc2J\xb4\x8c\x88py\xc01`s\x895\x81,\xd5$Fb\xa4$\xb1\x864-\x88B\xe1\x90\x0cQ\xb2\xedF\x06\x83V\x82\xc4\x1a|\x14\xd4m\x8f\x0b\xd0\xf6\x9e\xaa\x1f\x18\x82#1\x8ey*17\xe7\xd4\x01\xee\x9e\xafP\x13\xcd\xba\x91\xb4\x01\x12\tS\x0b]\xe7\xa8\x05\x0cJ@\xd4\xcf&lt;5!2)\',\xe6\x0b\xa2\x10\\\\\x9c\x8d\xd5\xfb\xfd\x8eo\x7f\xfb\xdb\xfc\xb9\xff\xdd\x9f#\xcb\xb2\xcb\x90\x19\xafd\xcb\xe7\xca\x01+\x84\xc0j\xb5\xe2k_\xfb\x1a\xbf\xf1\xe5/s\xef\xee]\xce\xce\xcei\x9af|\xc1Z\xd3\xf5=J*\xe2\xe5\xff\x07\x10!\x92jE\xa6#\xb9\x80\x89\x86R\xc1\xccJ\x8c\x14h9\x86N#\x03\xa9\x96H\xc0\x10)RM\x99[\xb4\x02)\x15Z*r\xa3\x99f\x19E\x9a2\x9f\x94\x18\xa5p!P\r\x0e\x89\x00\x11P\xda\x10\xa2`\x08\x82!\x04\x02\x82\x81@\xd5\x0f87\x90H\x89\x1b"\xa7\xfb\x1a9\xb1dZs\xdaD\xb6\x03\xc80p\\\x1a\x9c\x0f&lt;\xda{\xb6\x0e|\xf0x\xe7p! \x84&amp;\xcfr\x8a\xb2$M3\xb2,!\x04GQ\x14|\xf2\x8d\xd7\x9f\xb5\x8d^}\xf5\x95+[\xdb\xbaR\xc0\xf2\xc1\xf3\xe4\xf1\x13\xbe\xfcO\xff)\xbf\xf9\xcf\x7f\x93\xc4X~\xf5W\x7f\x95\xfb\xf7\xef\xf3\xd7\xff\xfa\x1d`\xac\x068\xe7q"".\xc3\xa1U\x92\x0cA&amp;`B`\x99+\xa6I\x1c\xc3^t\xa8\x08\x99\x12\x18\xa5\xd0r\xcc\xbd\xf2\xc4\x90ZC\xaa5e\x9e#\x84 \xca\x88\xd1\x8a\xdc\x1a\nc\xc9\x93\x84&lt;\xb5X\xa3\x08!R\x86q \x03) F"\x82\x10&lt;\xce{\x02\x02\x1f%"\xd3H\x99\x83\x10x\x04\xd7\xea\x8ck\x85\xe1\xb4\x1ex\xb8k\xb8\xbfi\xd8\xf4\x82\xc1+:/\xb1\n\xae\xe5\x96\xb6\x85\xfd\xe0Y\xb5=M?\xb0\xdelYov\x848^@\x8a"g\xb9&lt;\xe4\xc9\xe9\x19\xbf\xf7{\xbf\xcb\xeb\x9fx\x9d\xc5\x17~\xf6\xb2pw\xf5\xec\xca\x00+\xc6\xc8n\xbb\xe37\xbe\xfc\x1b\xfc\xfa\xaf\xff\x03~\xf9\xcf\xfe2\x7f\xf1W~\x85\xcdv\xc3\xe3\xc7\x8f\x99\xcd\xa6T\xd5\x9e\xa1\xeb\x08R\xe2cD!\xb0\x02r)(\xd4\x18\xf6\x96V0\xcb \xd7\x02MDF\x81\x8c\x01\xab\x05\x89\x16XcH\x8c\xa6H,\x89Vh)1Z\xa3\x95\xc6\xe3\xf0C\xcf\x10\x02h\x83\x12\x82\xa1\xef\t^^^\xed%Z\xe9\xb1_\x19\xe3\xf8\xef1\x10\xbcG(Eb4R\x08\x94\x84\x18A(M\xa2-\x991\x1c\xba\xc8q\xd31?[\xf1h[\xd3zI\x1f$\xbb6\x12\x84gP\x06Q{\xbc\xb08\xd7\xd2\xb5\rR]r\xc1\x04\xc4\x98\xd14\r\xdf\xfa\xd6\xb7\xb8~\xfd:\xf3\xf9\x82\'\x8f\x9fP\x96%F\x9agL\x88\xab\xe2\xb5\xae\x0c\xb0\xbc\xf7\xdc\xbe}\x9b\x7f\xfc\x8f\xff1\x9f\xfd\xec\xa7\xf9\xd5_\xfd\xdf\xf3\x9d\xef|\x87\xbf\xfd\xff\xfe\xdb|\xff\x07\xdf\xa7\xaa*\x0e\x0f\x96\xf4]K\xdb44u\x8b\xf0\x03\xb9\x10\xcc\r,\x12\x98X\x98\xd8\xd1SY"\x82\xb1p\xaa\x84\xc0*\xd02"E$1\x9a\xd4\x1a2k\x90\x08\xa4d\xf4&lt;C?z\xac,\xc3\x1a{Y\xc0\x7fJ\xe4\x03wY\xb8\x15B\x82\x1c\x9b\xd3\x01\x10\x97=&lt;\xe7\x06\x14\x82("\xc1y\x94\xb1$6Ag\x96\xa4\xed\x99&amp;9\x87\xb9\xe5\xc9v\xc7\xa6j\xd94\x8e\xaaP\xec\xba\x81\xbd\x83\xae\x0b\xec;\xcf$OQ\xda\xd3v\x1dc\xc9d\xfc\xfe\xdb\xed\x96\xc5b\x811\x86\xaf\x7f\xfdk\x1c\x1f\x1f\xf1\xc2\x8b/0\x0c\x03\xc300\x99L\xfe\x9d#f\x1f\x87]\x19`\r\xc3\xc0\x9d\x0f\xef\xd0\xd4\r\x7f\xfa\xbf\xfb\xd3\xacV+\xfe\xc6\xdf\xf8\x1b\xfc\xd6o\xff6F+Rk0\xca`\xf2\x14\x15\x03b\xe8\xd1\x08\xe6Vr\x98\n\xe6i \xd7\x01+#Fxd\x00\x90H!\xc7\xfcIx\xb4\x1ekTVI\xacVdI\x82Q\x8a\x18"!\x06\xa40L\xcb\x92\xf9\xa4\xc4*\x8d\x04\xa4\xbc&lt;V!\x10J\\\x12\xfb\x02Z(B\x04\xe7\x02\x08\x89\x94cX\x04A\x0c\x11\x1f\x02\xb1\xef\x90B \x85$\xd7\nG +\x0c\x8bdN\xbb\x8c\x9cn*\xb6\xbd\xe7\xd1j\xcb\xaa\x0f8\n\x9a\xd0\xa0\xa2%+\x13vUE7t\xc4(i\xdb\x96\'O\x9e\x8c\x14\x1ecY\x1e,I\xd3\x94\xf6\xb2\x83\xf0\xe3\xad\x9e\xab`W\x02X1F\xfa\xbe\xe7\xfe\xfd\x07,\x97K^y\xe5U\xbe\xf2\x95\xafp\xf7\xde]\x16\xcb\x05}\xdb\\\x1e\x90\xc0u\x03\xa1o\xc9d\xa0\xcc4\xcbD0\xb7\x91\x89\x89\xa42r\x99[#\xa4 F.\xcb\x12\x8c\xfdB\x14FI\x8c\x10h@\x85\x80V\n\xa9\x15B\x19\x92\xa4\xc4j\x83\x12\xf2\x19=&amp;z\xc70\x0c#]Yi\xb4\xb6\x88K\xea\xb2\xd2\x06\x1f\x00\xe2\xb3J?\x00JC\x88\xb8\x10\t\xbd\x07&lt;I\x9a\x13\x82C\xc4H\x9e\xa6\x94RQ\xa4\x19\xfb\xdea\xb5\x84\xb3-^j\xda\xa0\xe8/j\x9aA\x90&amp;\x19A)|\xef\xc9\xcb\xecY\x92~zv\xca\xe7\x7f\xfa\xa7\xc9\xb2\x9c\xc7\x8f\x1eqpx\xc8l6\xbb2\xde\n\xae\x08\xb0\x9eRU\xd6\xeb5\xc6\x18\xb4\xd6\xdc\xbes\x9b{\xf7\xef\xa3\xa4\xc2\xda\x84\xc4(|\xd7\xd2\xd4{\x84\xebI\x15\x94VP\x18HU\xc0H\x81\xd1\x9a\x18 \n\x8f\x92c\x8dK\x8a\x88\x96\x12\x85"5\x86\xdcZ\xf24e\x96gX\xa5\xd0J"\xb5B\x1aM\x9a\xa4()\x89!\xe0B\x18\x1f\'-(\x8d\x14c^\xa5\x8d%\xc6K\x86\x83R\x97a0B\xbc\xbc\x99I\x85\xd4\x06e\xd2\xcb(&amp;\xf1!\xd0H\x8d0\tZ\x8em\xa5\xe8\x03\xa9\xb5\x08\xa5\xb8\xbe\x98\x12\x02\xc4\xcd\x9e.h\xba\xdep\xdeI\xb6A\xd0I\x83M-\xf3\xe9\x0c!\xc43&amp;\xea\xfd{\xf7x\xef\xddwy\xfd\xf5O&lt;\x0b\x81W%\xbf\x82+\x02,\x18s\xa1&lt;\xcf\xc7Ch\xc6\x16\x88\xb5\x16!$e\x91\xe3\xba\x86\xaek\x11!\xa0\x05\xa8\xe8QD\xb4\x92h56\x9b\x85\x90H5z\'\xa3"Q\x825\x90YC"\x13\xa6E\x86Qz\x04W\x92`\x84@*\x81\xd0c\xce\xf4T\x0cdll\xf7D\x01\xd6\x18\x04\xe3MP /\x1b\xdc\x81\xe0\x05&gt;\x8c\x1eJi\x83\x12\x91\x18&lt;H\x8dL2$\x12\x11%\xf1\xb2\x88\x1b\x85 \nP\x89\xc1w-Bz\\\xdf\xa1\xa2\xa7\xb0\x92\xa3iJ\xe7{\xfa\xd0R\xa5\x02\x17"\xa0\x91Vc\x93\x14.\xa7\x91b\x8c\xcf\xf8[G\xc7G\xcc\xe6s\xd24\xbdR\xa0\x82+\x04,k-\xb7n\xde\xe4\xab_\xfd*\xbf\xf9\xcf\x7f\x93\x1f|\xffM\xa4\x10\x1c\x1e\x1c`\x94\xa4\x0e\x8eA+\x82\x03+ \x13\x92D\xfa\xb1\r\xa3\xc4H\xd3\x88\x97\x15y)0R\xa0\xe4X\xc8\xcc\x13K\x99f\x14Y\x82R\x92T\x1bLb\xd1B\xa0/\x87$\x90\x82!&lt;\xe5\xc5\x8f7&gt;\x85@+\x83\xd6\x06\xa94\xc1\xf7\xf8\xe0\x91HR\x99\xa0\x94&amp;2\xde\xfe\x94\x18\x1f\x1bL\x82\xc8K\x88\x82\xe8\xc7\xd6\x8c\xc7\x13\x83\'\xe2q@\x14\x12A$\x04\xb0R\x93YA?8N\xa6\x05\x1eA;xz\xe70*aZ\xce\xd1i\x8eR\x8a\'\xa7g\x081Ni\x9f\x9c\x9c\xf0\xf9\xcf\x7f\x9e\xa2(\xae\xe4,\xe2\x95\x01V\x9a\xa6\xfc\xcc\xcf\xfc\x0c?\xf8\xc1\x0f\xf8\xcd\x7f\xf6\x15\xde|\xf3{\xa4Y\x82\x92\x91\xae\xae\x89C\x8f\x8a\x9e\xdcH\n\x9d\x90\xe0I\xe3\x80\x11\x01uIz\x91b\x1c\xc3\xd2Jb\x94&amp;5\x9a\xdc&amp;\xa4\xc6\x90\x18K\xdb\xb4\x08\x06\xect\x062\xc3X\x8b\x14c\x0ef\x8d\xc1J=z-\x01\nPR\x92(u\xd9jQ\x04-\x88J\xe0C@\n\x8d\x92\x9a\x18\xc7z\x15J\xa3M\x82\xcf2d6A\n\x83\xf6\x81\xbe\xedPn\xa0\xadw\x04\xdfQw\x03F\x88K\xf6C\x82\xc0\xa3\x95F\x1bG\xd6y\xe6i\xc2\xd1\x14\x06\xdf\xf3\xb8\x8b\xb8\\\x93LK\x02#\x9fl\xbdQh\x14]\xd7\xf2\xf8\xf1c^x\xf1\xc5\x8f\xfb\xe8\xfe\x9dve\x80%\xa5\xe4\xf9\xe7\x9f\xe7\x7f\xfc\x1f\xfe\x07\xb6\x9b5\xdf\xfd\xde\xbfFH\xa8\xea=\xd2\x05\x86\xb6\xc1\x10(\xacF\xfb\x0e\x11\x06\x8c\x0eX)Q"\x8e\xc5O%!\x06\xd2\xc4\x92(E\xa2\xc6\xdbd\x9eeH\t}\x17@(P):-\xc9\'#\xa5\xd8\x0f=H\x81\x8a\x0ekG\x0f&amp;\x18\x93\xff(\x19\xbd\x8d\x88\x0c\x11\xa20\x08+\x81\xb1\x89\x1c.\xe9\xcf\xe8\x14\x91\x14\x90\xe5\xf8\xa4@\x98\x14\xa3\x0cb\x18\xf0\xce!\xea\x1dCW\x11\x87\x16\x15&lt;^\xb4\x84\xa1#\xca\x800\x12-$\xda\tL\x88\xa4z \xd7\x82i\x944q`:)I\xca\t&amp;1\xf4\xc3@p\x91\x87\x0f\x1e\xf2\x1b\xff\xe4\x9fp\xeb\xd6-^y\xf5\xd5\x8f\xfb\xf8\xfe-\xbb2\xc0\x82\x11\\\'\xd7\xae\x8dt\x99\xc3C\xd6\x9b\x15y\x9a\xb0\x98N\xe8\x85\x87.\x90\xc4\x9e0\x0c(\xdfc\x8dB\x8b\x91\xee\xa2\xa5\xc0(\x81\x96\x06#%F)\xb2$e:)\xb1zL\xb0\x85\xd2\xe8lBRL0\x93\x051\xcd\x88\x02t\x16\xc7\xbc\xa9\xaf\x80\x08:\xc1\xc5Q8\xcd\xcb?(QH\xef\xd1J\x81\x1e}\xa4\xd6vdXh\x05\xb6\xc0\xdb\x02U\xce\xb0\xc5\x94(-Jh\xa4s\xd4uM\x9a\x16\xc8vOh*L\xf0\x0c\xaa\xa2\xddm\xe9bG\x94 \xb5\xc1\xa6\t\xa9\x1f\xc8\x93\x9e2q\xb4B"\x8d$\xba\x16-\xa7\x9c\\;A\x08\xc9\xc5\xd9\x9a\xcdj\xc5w\xbf\xfb=\xbe\xf7\xbd\xef\xf1\xfc\x0b/\\9&gt;\xfc\x95\x02\xd6\xd3\x04T\n\x81V\x92\xb2\xc8\xb8vx\xc0Dk\x9a\xbe\xc6\x85\x1a\xed#\x18\x85\xd2\x9aTE\xd4eM)\xd1\x97\x9fz%\xd1R\x92\xa7\t\xd3\xb2d6\x9d\x12\x82C+\xc5Dk\xb4\xcd\x11Ra$\x0c}\xc30\xf4$\xd6\xa0\x95\xa4u\x81(\xd4\x08\x1e\xa1\x91F"\xb4 \x12\t""\t \x05&gt;F\xc2e\x89\xc4\xc5@\xf4\x02\x19$2\x1a\xa2\xed\t\xa6G\xa7\x06\x88\xf8\x18\x90Vc\x92\x04c\r\xbd\xd2\xd0\xb5\xa4\xca\xa2\x8d\xa5\xa9W\xd4\xd5\x1a\x1b\x06$\x81\xd4h\x16\xd3\x12\xa12\xbaU\x07\xd6\x12\xa5$\xba\x9e~p,\xe6\x0b\xb2$\x7f\xd6#\xbcw\xef.n\x18\xe0\x8a\xf1\xb2\xae\x0c\xb0\x9er\x8f\xb4\xd6\xf8K\xda\xcc\xeb\xaf\xbeBi\x0c\xfdzE\xeb;\xc2\xd00\xb4{\xac\x18[4V\t\x12\xad\xc6\xbe\x9f6H \xb5\x9a,\xcb\x98\x14%\xa91H\xa5p\xdea\x92\x14\xa4\xc4\xf9\x01%\x04u\xdb\xa0\x94A\xab\xb1D\xe1\xc2@b\x0c1B\xf0\x1d1\xf4h\xa31A\x12\x86\x81&gt;x\xacV\x04\x15\tR\x11\x10cAR\x8ey\x9d\xd2\x02i\x041:\x86\xb6&amp;\xf8\xc8\x98\xfeC"%\xd1y\xa4\xba\xac}y\x8fT\x1a+\x05Qz\xfa\xbe\xc6\xb7=JH$\x812\x1b\x15n\xca$2h\x8d\xcdR\xa2RH\xa1@Y\xda\xa6{6}\xd4u=\xe1\n\x15F\x9f\xda\x95\x01\xd6S\x1be\x82\x1a\xae\x9d\x9c\xf0\xda\x8b/\xd1m\xd6\x9c\x9e\x9fbD\xc0\xc9\x80R\x82TJ\x8c\x02\x11#FIRc\xc9\xac\xc5HM\x9e[\xb24%1\x16k\x0cJi\xa4\x0e4\xbd\x1f\x9b\xcc\xf9\x84b\xbaDH}Y1\x97\x10=\x82@\xa2""\x0c\xf4]\x87s-\x12\x85\x8a\x1a\x19\x02\x081\x02J(\xb4\xcd\x89r\xac\xd8+\xa5\xc6\xfc,-\xd0\xd9\x04UN\x89I\x8e\x0br\xac\xa3i\xc5\xe0\x06|?\x10D\x18\x9b\xe7IB\xf4\x91\xc19L6\xa1Xx\x9a\xb5\xc4\xd7;\xd0\x0e\xdfw(\xa04\x02g\x04\xc4\x80\xb1\t\xcb\xd9\x9c}\xe7i\xdb\x91\xafuxx\xc0|6\xbfra\x10\xae\x18\xb0B\x08lw[\x067\xf0\xe2\xf3\xcf!|\xc0D\x98\x15\x05\xfdF\xd3\x89\x80\x10\x1e!%\x82\x80\xbc,\x8a\x1am\xd0b\xfc5\xb3\x96"K\x11H\xa4T\xb4]\x8f\x0b\x01e5EY"\xad!DGjS\xb4\xb6\xf8\xde\x11\x83\xc3j\x85\x17\n\xa5-F\x98?\xa8WE\x89P\x1ac\x13\xd0\x1a\'$6/\x19\\\xc0\r#\xab!\x02\xce\x0b\x82\xb2X\x9b\xe2\x84\x1a\x81\'\x001\x86S\x13\x07\x06\xd7\xe3\x01\xad-\xd2*d\x88(\x06\xb4\xf7\xc82\xe2z\x07\xaeC)Gn\xe1pj\x08A\xd0\xe0!\x0c\xb8\xae\xe3\xc5\x17^F\x9a\xc7&lt;z\xf4\x98\xf9b\xc1\x8b/\xbd\xf8\xc7\x0c\xd2\xff\x98\x8dr\x8e\x8e,\xb1h\xa0\xa9v\xc4\xb6\xa1m*|\xd7\x90\xc6\x88T\x02-\x03\x9aH&amp;\xd5\xe8\xbd\xa4\x04%\xd1iJ\x9a\x14x\x17\x89a \xa8q,\xcc*\x8d\x08\x01\xe5A\xa21R\x12\x83#b\xb1i\x8a1\x05m[\x11\xaa\n\x1f\x1cD\x87\x12\x82\xe8\x18o}\x12\x84\x96De.\xdb8\x01\xdfw\xc4a\x80$E\xd9\x02\x92\x14D$\xb8\xe1\x92\x1b5\xd6\xb5\x86\xe8QV#\xad\x01\x11H\x84 DO\x8c\x0e\x95\x82\x8b\x82\xa6\x05\xb4\xc5\xe7%J\x0bT\xdf\xe2\xda\x0e\x15{fH\x84p\xb4C\x83U3"\x81\x1b7\xaf\xb1\xdem\xf0&gt;`\xec\xd5\x1c\xbf\xbfR\xc0\x12B\x90$\t\x8b\xc5\x9cG\x1f\xbe\x0f\xde\xb3Y_\xa0\tL\xf2\x9c\xae\xdb\x12\x02\xe4\xd6R\xa4\x1a\x13\xc2\xc8\x15\x17\x824IH\xac\xa5\x8b#\xdf=\x12H\x94F*I\xd3\x8d\xa3\xf3:\xcb\x98\xe8\xd98\x10\xe1\x1d\xaeo\x11:E\x88\x11\x80RH\x10\x918\xce\x89]\xb6h$HI\xb8l\xd9\xc4\x18\xf1\xc3@\xf0\xee2\'4\xa05\xc2\xa4\xe8$\x03!\xa8\xea\n\xa5\x0ci\x96\x11\xa5\xa2\xf3\x1e\x17A\xeb\x9c\xde5\x18\xa9!x\x84T\x80\x85L\xd0\x0b\x8d\x14\x11z\x83\xe8ZB\xdc\xa2|\xc4\x86H\x91X\xf2|\x823\x06\x9c\xc7\xa6\x96k\xc7G\x9c\x9f_\xb0\xdbn\x9f\x91\x1d\xaf\x92])`=\x1d\xa3\xff\xe8\xa3\x8fH\x13\xcb\xfet\x85Q@\xef\x88\xbeC\x89Hj-eb(\xd3\x14\x19\x1d\xa9\xd6\xa4\xa9%K\x13\xa4\x00\x1fAi\x85@\x12\x84\xc4\x85\x88MR\x12\x9b\xa0\x84&amp;x\x8f\x91\x1aADx\x8f\x94\x03\xb1\x17\x84\xd0\x13\xfd\x80\x14ad\x13\n\x90\x89\xc1\xd8\x04\xa9\xe4\x18~\x85\x80\xcb^\xa2g\xfc\xbd\xd0\x86\xa0,\x1e\ta|N\xa3\x05V\x83\xeb\x1a\x9c\x90D\xad\tz\x0c\xb3\x99\xb1t\x97K\x0b\\\xd7\x13\xbd#M\xcaq\xee\x11\xf0J\xa1m\x8a\xd0\x86\xa8\x13\x86\xcd\x86"\xcdP\x93\tCVPw-I^P\xa4)~:\xa3\xa9\xeb+\xc5jxjW\nX!\x8c\xcaw\xd5~\x8f\t\x03\xf8\x1e\\K\xbd=\xa7\xdf\xae\xc8e`\x9a\xa5X)\xd1\x02\x8c\xb1Xk\t\x08\x9a~\x00\x02\xca\x18\xa4\x87\xe0=0\x10}\xa0\xc8r$\x10\xa2\x1f\xe96F!cD\xc9\xc8\xd05@\xa4\xef\x1b\xac\xd2h\xa9.\x85\xd7\x14R\x19\x84\xb1H!GV\x962\x08\xa9\x89x\x84p\xe3\xef\xb5\xc1\xabq:HI\x89\x94\xe0\xba\x8e\xbe\xefF2b\x9a#\x95!\xe2\x18\xfa\x01\x94\xc4$\x82\xb6\xaa\t8\x84\x8c\xf4\xce#\xa5A&amp;\xd0GO\x10\x02\x93+\nah\x07G+@^~\x10\xca\xb2$z\xc7\xe1\xc1\x01M7\x8c\x03n\x7f\xec\xb1\xfe\xe3&amp;\x84\xa0(r\x9a\x8b\x1d]\xbd\xc7o\xd7\xe80V\xc4S\tFI\xec%\xeb3\xb1\x86(\x04M\xe7\xf18\xa2\x14\xec\xb7\xbb\x91\xba\xec\x1cJ\x8et\xe42\x0bL\x8b\xc8\xc1\xe1\x92\x18\x05:F\x121\xd6\xcb\xbc\x0f(-\x99LgD$"\x04\x8c\x04e\x0ch\x03c;\x19\x05D\xad\xf0\x8c\x933\xcaXl\x92\xa2\xd3\x82\xa8\x93\xd1\x831\xde\xf4\xda\xaeF\x0b\x05R\x13\x86\x9e\xb6m\xf0CO\x0c#\xbdfl\x98\x8f\xc4@7\x0c$6C\x9b\x1c\xa5-I&gt;\xc1\xb5\r28\xa4\x0fdy\x89\x0f\x91$U\xa0\x04&amp;\xb3\xac\xeb\x86(%\xdaj\xea\xae\xa5\xaa\xea?\xb4\xac\xe0*\xd8\x95\x03V\x8c\x91z\xb7G:\x8f\xf0\x03\xc2u\x84\xaef\x9ahr\xa5Fv\x83\xd6\xa46E\xc8\xb1\xa8\xb9\xed\x06.\xda\x9a]\xe79\xab\x1b\xda\xde]j\\i$\x82\xd9DR\xf60\x1f"\'\xcb\x19\xd7\x84f^&amp;$(Tj\t\x02Tb\xd1:EE\x8f\x04\x84\x92`\xc6\x81\tB$\x86@P\x12\xa1\x14\x9a\x08~\xa4\xf7\xa8\xc4`l\x8a\x8a\x02\xe7\x06\x1a\xe7\x18\x84a\x00\xba\xba\xa3jwTm\x83\xdf\xef\x08\xc3@\x92&amp;\x84\xe0\xc9\xb2\x04\xc2\xd8~2\x13\xf0\xd2\x80\xd0X\x9b\x92(\x83p=\xd1\r$EN\xb3\xdb\xe2\xea-\xba\xd0\xc8\xa1E\xfa\x01-a9_\x10\x85\xa2\xaa*\x0e\x0e\xae\x96\xf2\xf2\x95\x02\x96\x94\x92&lt;\xcb(\xf3\x9c\xd5\xea1}\xb5\xc7W;\xa6F\xa2/\'\x9a\xb5\x19\xf3\x1e\xa1\x14]\xd3\xd3\xa1Xw\x91\xbb\xeb\x9aG\x9b\x86V\x08\xf2\xa2\xa4\n\x92\xd0\x04\xe6\xf3)\xdd X\x07\xcf^x(\x05\xbev\xec}\xc7,7,\xe7S\xd2,%Z\x8d-\nt\xf0(?\xe0\xfc@\xd0c\xc1\xd4\r\x03\xa2\x1fP\xd6"\xb5F\x11\xf1CG\x88\x10\x86\x81A8\xean\xa0i;D\x9a\xd2a\xd9\xed*\xd6\xab5\xdb\xdd\x96\xbam\x99\xe49Z%\x9cnj\xdc\xd0\xa1\x89\xa8\x189Z.ph\xa6&amp;A\xcaHp\xe3-w\x14@)\x90\n\x04\x9e\x8b]E\x9aM\x19\x9a\x1a1DR!\x11\xd2P\xfb\xf0L\xae\xf2*\xd9\xd5\x02\x96\x10L\xca\t\xb3\xe9\x94\x07oo\x10\xd1c\xa4@D\x87\x16\x92&lt;\xb1\x085R\\\xfa\xc1Qu=\x83J\xe9\x91\xf4\xd2\x12l\xa4k\x03\xed\xb6\xc71*\xc9(\x1b\xc8\xecx\xab\xea\x11&lt;ZWT\xbdcQ\xe6\xa8t\xce\xccN M\x88F!l:&amp;\xef\x83"\xf4\x02a\x13\xc6f\xb3C\x89\x0e\xad/\xb9\xefn \\\xaa$\xf7\x83\xa7\x12=\xdb\xd6\xb1oZZ\x04\x95\x0b\x9c\xaf\xb6\xac.V4u\x83\x90\xa0\xcb\x81\xba\xad\xc7\x91\xfc\xba\xc2\x12)\xad!\x98\x94\xd6\x83\xcd\x12\ne\x11\xa3H\x04B\x8c\x02\xb7&gt;\x18\xb2\xd4\xb2\xf0\x81\xa6\xad\x10A\xd0U\x0e/\x0c\x07\xb7^B\xc6\x91\x8b\x7f\xd5\x12\xf8+\x05\xac\x08\x0cCO\xbd\xdf\xd26\x15\xb1\xdeP\x8a\x01\xab$Z*\x94\xb0\xe3\xc1\x84\xc8\xbe\xeb\xd9E\xc1\xf9\xae\xe6\xbc\rl\x9bn\xd4B\x90\x8a&gt;\x8c\xf3y\x99M\xe8\x86@\xd3l\xd9\xee\xd7\x9c\x1c\xcc)\xcd\x9c\xa1\xedXu\x03\xb9N\x99\xe4\x19"\xa4L\x8b\x84\x10\x07H\r!x\xe2\xd0#\x83$H\x85\x0f\x01\xad\x05\xd2\xb7\x08\xa9i\xbb\x8e\x10\x1c]\xd7\xb2\xeb\x1c\x9b\x01\xb6\xbdgW\xb7\x9c\xaeWt^R{\xc1\xa6jy|~F\x88\x81$/P\xc6p\xb0\\\xa2\xd2\t\xde\xf5x\xa5\xb8\xd8U\x18mXoj\xa4J\xc9\xb3\xb1\x0f\xaa\xac&amp;\x86\x80\xf2\x06\x99\xa4\xf4]\x8diw\xf4]E\x91\xcc\xe9pH+\x10\x1e\xda\xb6\xf9c`\xfd\x87,\x84\xc0~\xb7c}q\x81s\x1d:z\x12"\xa9\x0fXk\xe8\x95E\xc6\x91=\x19\xa4aP\x82U\xb7\xe3\xa3\xb3-\xced\xc8$\xe70\x01\xe7z\x8c\xd5\x94\xc5\x14\x11$\x90Q\x94)\x93,!\xb3\t\x85\x8d\x94\xda3a\x8f_?\xc0\x87)\xfbZ\xd1\x17\x13\xe6\xe5\x02-\xe2\x18\nED\x8b\x04\xa2#\x88\x81`4\x83\xc9\x19dB\xb7:\xc7\xfb\x01\xa1&lt;\xb2\xed\xb1A\xa2\x85g^\xa4\xd4\x03(\'\x98\x943\xca&lt;\xa3\xeb[\xf0\x82\xba\xed\xe8\xb75NI\xf6\xfb=\xe7R\x90\x18\xc9\xaa\x1f\xa8\x86\x9a\x90\x18N\x12\x83Q\x8a\xfe\xb2N\x16T\x82\x0e\x81\xc4\xa7\x08\x11qr j\x87\xb4\x11\x11\x02\x93rN\xf0\x81+\x86\xab\xab\x05,!\x04\xda\x1a\x9c\x84\xbe\xe9H\x1d\x18kPV\x81\x84\x89\x15Da\xe8\x83g\xb5k\xb8\xbf\xe9X\x0f\xa0\x8a\x12\x9b\x16(m\xd0\x02\xf2d\x8a\x88\x9e"\xcb)\xf2\xc9\xf8\xbcF\x10\xba\x86j}\x8a\x9a\xa4\xa4\x93\x8c\x81H\xd36\x14FBp\xb8f\x85\xec\xb7\xa4Y\x81I2b\x10\xf4]\x83\t=if\xe9L\x8ev\x92d\xe8\x18\\\x87\x8a\xc0 \xe9\x1b\xcf&gt;\n\xb6]`\xb5\xdeRw\x03Q$\x18\xe3\x10\xfd\x80\xdbW\xf4]K\xdd\x0f\x0c(\xda\x00\xed\xe0\x19\x9ccR\x96\xf8h\x18\x82\xa4\xe3\x94\xaav\xdc:\\\xb0\x98\x14X\xadIMJ\xcc\x1c\xa2\xd3\xb8]\x84\x98 \xbcE\x87\x84j\xb5ej\n\xf2,\xe3\n\xe5\xed\xc0\x15\x03\x96\x94\x92\xf9l\xc6\xe1r\xc9\x1d\x7f9\x19#"F\x1b\x92"g0\x86]\xb0\\\x98\x92z\n\xc9&lt;e\x81\xe6\xa4\x980\xbd\x1c6\xd8\xd6=\x17\x8f\x1f\xb2?\x7fB7\xb4\x9c_T\x88K6\xc4v\xbbe\xbdk\x08x\xf2"\xe3x6\xe3z\x99\xf2\xe22\xe7\xa4\xb4\\\x9bf\xe4t\x04W0\xf4\x87\xb8\xa8!vD\x11\xe8\x8c\xc5\x03q\xd8\xa1\x86\n\x89\xe3\xac\r|\xf0p\xc5\xbd\xb35\x0f\xce\xd7\xacv;\xbc\xeb\x10\x02\xb4\xd0h\xa9\x99Lr\x14\x81\\\x81\xcd\x04=\x8a\x99\xc9\x08h\xb6\xbb=\xbb\xcd\x96\x0f\x1e\x9d\xd2\x84\xc845&lt;w|\xc0\x8b7N\xb8q\xbc\xe4\xe6\xb5\x13\xae_\xbf\xc6\xd4Ztj\x89\xfb\x80\xf0\x03\xbe\x95\xc4d\x823)\xa95\x1c^je]%\xbbR\xc0\x12\x8c^\xcb\x00"\x0ehu)\xdf(K\xea\xf4\x88\x8dJ\xf1\xd9\x12\x99\xcdx\xee\xe0\x90\xc3[\xcf\x91O\xa6dy\xceb6E\x04\xcf\x83{w\xf9\x97\xbf\xfd\x15&gt;X=$\xc3al\x04\xdf\x93\x10\x99d\x91Rg\xd4}K74&lt;~\xdc\xf2\xf8!\xbc\xa5\x14\xb3I\xc6\'\x0e\x17|\xfe\xb9\x19\xaf\\_\xa0K\x89\x0b\x90\xc4\x9e\xde\x18V\xd2P\xd0\xd3\xc7\x9e\xfd\xae\xe6\x9d\x0f\xcfy\xf3\xde\x05\x1f\x9d\xae\x90\xbeG\x13\xd0q O$V\xc4Q\xd9FG\xa6\x89\'\xcf,*\xc90\xc5\x94dv@qpBP\x86}\xddp\xef\xa3\x8f\xb8\xf3\xd1]\xee=&gt;\xe3\xc9\xea\x94!:\xd6&gt;\xf0\xc3\'\xe7\x94\xb7\xef\xf3\xb9\xcf|\x9a\x17\x9e;"\x194\xa9\x9e@W\x13:G\xb3\xdf"\xcb)\xe5r\xc6t&gt;\xbdR\xa5\x06\xb8b\xc0\x8aD\x86\xa1\xa7s\x0e\x82\xc4E\xc5P\x16&lt;\x10\x19:9`\xfe\xfc\'\x99/\x0f\xc6j\xb5\x1f88Z\xf2\xd9\xcf}\x96\x83\xc5\x82YY\xd0\xec\xf7|\'T\xdc?,\xf1\x07\x059\x8eIf\x10~\xc02r\xe3\xbd\x80~\xe8XowT\x8d\xa7\r\x9am\xef\xd9\xd4[~\xef\x83\x1d\x1f&gt;\xce\xf8\x13/\x1d\xf1\x99OJ\x8e\x17\x0bha\x18:\x08k\xc4\xbec\xdb)\xbe\xf7\xd1\x05\xdf\xbf\xbf"(\xcb\xf5\xc5!\xb8\n\x19Z|;\xb2\x15p=\x85\x91\xe4\x89D\xc5\x96BI\xf2\xd4PL\n\xd2i\x89\xcd\r\xc5|FUkf\xea\x88\x1bs\xc9\xa3\xd3\x92\x1f|\x98\xf2`\xd3\xf3d\xbbGiM\xb6\xdbP\xe6\x96\xedn\x8d\x0c\x9e\x89\xb5\x88(G\xdaN\xaf\xc9\xf7=ZH\x94\xbcz\xeb\x81\xaf\x14\xb0\x84\x90$IF6Y\xd0\xa7\x0b\xd6jI\x9b\xe7\x9cnkxp\xc6\'f\xe7\xe8\xd4\xe0cd_m\xb8~\xe3\x04\x11\x1c\xde\r\xd4U\xc3\x93\xc7\xa7|t\xe7=\xaa\xf5)\xa5\x11L\x94\xc2\\\x8a\x87\x98(H\x04d\x89D\xe4S\x96&amp;\xe1b\xdf\xb0\xad[\x0e2AWZV\xcep\xef\xa2\xe7w\xde\xbdO+-?\xf7\xf9\x03\x92\xf2\x1anw\x86xr\x97\xaa\xeb\xf9\xfd{\x15\xef\xad\x047_|\x91\xeb\xf3\x94\x8b\xc7\x1f\xf1\xf8\xe2\x82TJ\x8e\xa7%FE\xaa\xdd\x06\x1f\xa0n=\xce\xf5\xd4]\xa0t\x92&lt;\xc2DH&amp;2\x82k\xf1]C\xd6n\x118\xf62pm6e\xb5_\xf3\xf0\xee}\xa6\x89\xe6\x93/\xdf\xe0d\xff\x18w\xfe\x80\xaa\x1f\xd8\x1a\x8d\xcbr\x92\xc3\x1b\x98\xd9!\xa1\xaay\xedb\xfdq\x1f\xdb\xbf\xd3\xae\x18\xb0\xc4\xa8\x88\xb7&lt;B\x1d\xde\xc4\xd7\x17Tg\x8f\xb0\xbb\x8a]\xd3\xf1\xf6\xee\x8c\x83\xd7&gt;MbR\xa4kx?3L\x8f\x17L\x8a\x19\xae\xda\xf3\xe8\xa3\x0f\xb8\xf3\xd6\xf7\xb8w\xfb}\xfcv\xcd\x90\xa5\xc8\x10\xe8\xda\x96\x18\x06\x12-\x98\x97\x05\xf3i\x81M3r/YojZ\xd7"L\xe0\x85B\x93\xa5\x0b\xde\xd9\xc1\x9d0%YI\xaa\x07\x0fx\xf8\xee[\xb8]\xc3\x10z\xd6\x95\xe0\xf9\x9f\xff"\x9f\xfe\xd2\xa7\xb9\xfd/\xbf\xcd\x9bo\xbf\xc7\xc4:\x9e\xbf~\r#"\x8f.V\x9c\xafw\xc88\xb6\x82\x9c\xeb\xf1\xd2c/\xd6\x14\xe5\x9a\xa2\xbc\xa0,\xa7L\x8b\x8cyf\xb0a\xd4\xa2X]\xeci\xeb\x8e\x85\x15,\xb3\x9c\xf94\xe7\x85\x939\xcfM\x13\x12)\x112\x12\xb4\xc4G\x18D\xc3\xc3\xfd\x19?&lt;o\xf8\xc1\x0f\xbe\xc7/|\xe9Khc\xae\x14\xe1\xef\xca\x01+\x84\xc0\xf9\xe9\x13\x1e\xdf\xfb\x90k\xaa\xe3\x90\x96\xe3\xeb%C\xc8y\xe0`\xb7Z\xa1\x8a)K+\xa9OOy\xff\xad\x1f\x12|d\x7f\xf6\x98\xb3Gwx\xf4\xce\xfbl/\xce0"R\xb7\x0e\x11\xc6\x86t?T\xb8\xa1\'7;\x96e\xca\xe1$\'\xd5\x1ac\xe0b\xd7\x11Z\xc9\x9c\x81k\xb9\xe0\xa1\xb5\x0cf\xc2\xe3^\xf3\xee\x9d\xc7\xbc\xfd\xd6\x1d\xa4\xb7,\xf2\xc8\xd1\xf4\x88O}\xe6%T\xa8x\xfb\xed\x1f\xb1ZU\x1c_\xcb\xd9\xef7&lt;:\xdf\xb1\xe9\x07lV2\x9f\x1d\xe2\xfa\x01\xdfV4}K\xd5Ac%\x8d\xb7\x9c\xad\xf6\xf8\xfb\x0f0\xae\xe6\xb0\xc8(\xd3\x04\xefz2\t\x93\xc3\x05\x01K\x9ag&lt;\xf7\xc2-^:^2M-F\x8f\x83\xbc}\xdd\x10}\xe0\xc0\x1c\x13g\x8e"1\xf4}\xf7l\x1d\xddU\xb1+\x05,`\x14\xf1\x88\x11\xb1:\xe5\xe88\xe70O9(\x0c\xa9U\xa8\xc6\xf0n\xdb\xb2X\x1c\xf0\xfcr\xc6\xbeo\xb8\xfd\xfbo\xf2\xf8tE\xb3\xbb\xa0\xda\x9f\xd3\xed\xeb\xb1\xb0\xa8\x04\xeb0\xa0\x84!z\x011\xc5$\tZ)\x9eT\x03\xeb\xdd\x19\xcb\x89E\xe2i\xfa\x81\xe03\xd62075\xb2k9{\xf4\x90\xd5\xe3\xc7T\xfbsnL\x0c\xc6\t\xd0\x02\x95\x1b\xf2\xee\t\x8f\xdf\xbf\xcb\xbd;\x1f\x11\x1c\xd4\xb5\xa3\xa9\x1a\x9a&gt;PN\x17xm\xb8\xb7\xder\xba\xdb\xd1\x87@\xd7\x0f\x0cRc\xd6\xa7\x1c\xack\x0e\xa73\xe6\xe5\x9c\xf3\xba\xe7\xbc\xba\xe0\xe6\xbc\xe0\xf9e\xc9$I\xb0iF\xd7+\xca\xe5\x92W^z\x91\x83,\x85\xbeA\x85\x16#\x05\xc8\x88\xf3\x81\xc4H\xae\x1d\x1dp\xf3\xe4\x98\xfd\xf9)\x1f~\xe7[tU\xcd\x8dW_\xe5\xf9O~\x96\x8f\xbb\xfepe\x80\x15\xe3\xa5\x96\xa85\\?&gt;\xe2\xc0\n&amp;\xb1G\x07\xc3\xd0\xd7L\x8den,b]aCO\xea\x1d\x9b\xed\x9e\xb3\'+\x1e\x9d\xaei\xbb\x8a\xde5\x0cuC\xdd6t!20\xee\xb4\xe9\x9a\x0e\xbc\xa3H\x14\x07E\xca4M\xa9\x06\xc7\xf6\xc9\x9eT\x0b|\x1f\xd1"\xd0\x08C\x16z\x92l\xca\xc3\'\xf7\xb9\xa5\x06~\xee\xe5#\x16\xc9\t\xbb\xf3\x86w\x1b\xc1\xa60\xa4\x9b\'&lt;zp\x97\xd8\xf7\xf4Np\xd6(\x16\xd3\x02\x9b%\xec\xea\x86\x8bf\xcb\xe3\xa1\xa7\xd2\x9a\xbaw\xc4&gt;0\xb7\x96(5\xabA\xb1yr\xca\xc1\xee\x82y\xa2)\xcb%&amp;+X,gd\xd3\x92\xe0\x15\xab\xfd\x8eD\x0b4\x1e\x11\x1c}\xdf\x11B\x87\xe1rR;:\xc2\xd0\x92\xa4%\x1f\xfd\xe8\x07\xdc\xfeW\xbf\xc7\xf0\xe0\x1e\xb1\x1b8z\xf5E~\xe9\xff\xf4\x7f\xe1\xd6\xa7?\xff\xb1\x9e\xe7\x95\x00V\x0c\x81j\xbf\xe7\xfc\xc9C\x86\xa1\xa7o+&amp;\x85%\xb8\x86\xc1H&lt;\x12\x1f\x06p\x1dq\xe8\xf0]\xcd\xf6|`uvA\xb5\xebi\xda\x81}\xe3\x19b\x84\xdeQN\xa6\xa4J\xf2h\xb5a\xdb\x0e\xf4\x9d\x03\xe7PJ\xd2\x0b\xc9\xd9~\x0f\xdd@\x1a,^K\x8a$Rd\x02\xe1\x1a\xb2\xe4\x90\xd0hbS\xf3\x85O\x1d\xf3\x0b\x9f8!M5w\xef\xaey\xf2\xfe9\xbb\x10\x11\xbdgb,\xc7\xf3\t\xa7uG\xed=\xedfK3\x8c\xfc\xfc\x9f\xfa\xe9\x9f\xe2\xeej\xc5\x8f\xee\xde\x1fg \x83D+\xc5\xcd\xc397\x973\xea\xcd\x9a\xd5\xc59\xeb]\x85\x9e;\xd4\xa2\xa4\x13\x19\x9a\x84~\xe8\xe8\xba\x9e|\x12\xd1\xd1\x13\xba\x1a|\x8f\x8c\x9e\xe0&lt;ZJ\x84\xd4\xa4V\xb1\xcc\x13\xde\xfd\xe1\x9b$O\xeesppLy|\x82\xdf\xae8{\xfb{\xdc\xfa\xd4O\x7f\xac^\xebc\x07V\x8c\x91\xd5\xe9\x13\xfe\xce\xff\xe3\xd7\xf8W\xff\xeboc\xcb\x14=\x99\x83\x92\x84\xa7\xfa\xc5!\xe2\x83D\xc9\x80V\x00\x81\xa6\xafi\xda=}7\xd0T{\xfa\xaeCjO\x82c\x9ejH\x13\x86\xb6f_\x8f\x87\xa2\x15\x1cN2n\x1c\x1d\xb0\xb98\xa7\xeb\x03\xc1C\xd3;\x16\xb9&amp;\xb7\x8eBDd9a\xbb\xe99,\r/\x1d\xcc\xb86\x9d\xa1\xb2\x9cb\xf2"\x8f\x87\x1fq\xf7\x9d\xfb\\\x0c\x82\xe5\xe2\x80\xe7\x8f\xb64\x8fO\x89\xde\x93[\xc3L\x054\x03\xed\x93G\x94\xce\xf3\xc6$\'d\x19\xc2\x07\xd2D\x92M\x147\xaf\x1f2\x7f\xe3e\x86zC\xb7]\x83\x0bdYN\xdd{b3\xea5\xe8$%\</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45489.96614583334</v>
+        <v>45492.67210648148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>784982</v>
+        <v>785466</v>
       </c>
       <c r="B11" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Roger Machado</t>
+          <t>Luis Zubeldia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9bzTXtRaw profile type xmp\x00\x00H\x89\x95VK\xb2\x9c0\x0c\xdc\xeb\x149\x82-\xd9\x12\x1c\x87\x02\xb3KU\x969~Z63\xf0\xf8g\xa8\xe7y\x1e\xf4\xe9nK\x02\xfa\xfb\xfb\x0f\xfd\xc2\'r\x8a$\xa3u2X\xa7\x93\x05\x9d4[\xd2\xc8\xc1\xf7:j1\xf1{2\xb1i\xd4\xa4\xb3\xb2f\x19\xda\xef_\xeb\x99M\n\x85\x81\xc3\xcf\x0b\xa1\x19N*C\xe6\x94\x92\xee\xc2\xb6{\x1e\xba\xb3\x84+\xc8\x80P3Y\xfdp1Xq\xd1\x19\x86\xc6\xb3D\xe9\xfd\xc2\x7fA\x18+c\x9dZ\x10|\x8b\xf5\x08\x0b4\xd6\xf1\xe4\tX\xc8a\x85\xe1\x0e\x17@e\x13\x15\xec{\x0bp\xefA\xb1\x00\xe7r\x1f\xa4Y\x81\x08&lt;\x1d(\xdb1\xd8\x96\x12\x9c\xe4H\x08\x813\x02\x8e\\\xe8C\xc6\r\xb1f8f\x97\xd1\xa1\x032Hr\x91E\xd03\xdc5\xc1`\x89\x007\xb9\xf3\xb9\xd9\x97^\xd4\x11\xc8ol\x08\xa0G\xed?4\xea.jQs\x1aUJ(\xa4\nY\xb3\x87r\\)W\x1b\xae\\"\\\x0c\x7f\x02j\x1c\xdc\x18\xab\xe2\x16j\x05\x84\x02O\xc8\x85c\x94\x91\xe7\xaf\xa8Hx\x8e\xc9m\xe8\x19z\xd3\xcfu\xb8\x93\x81\xb69\xcf\x0f\xfa]y\xd0S}\xbc-\x0fJ\xb1\xd6\x05\x82)\x1f\xeb\xa4Vm\xd1\x8d\x8d\x07^R\x16\x15|O\xb0B\x1f\xd2\xb7V\xc2u\xad\xfcH\xe6z\xa2\xc2\xf6\x96\xb4kS\x01\xdfx_SK\xb9,;\xcc\x8c\x08\xde\xd0(\xe7d\xd0\x08g\x01b\x99\xab\xdcs-|\x04}\x89Q\xfc\xf8\xb3+\x80\x15\x87\x8f\xbaA\xafK\xe2\t\xdf\x82\x95%\xfb\xa9\x1e\xdd\xb6^-\x11\xddf\xca\x06\xe9S_\x93\x986G\xc5\x88\xa9\xc3\x04\x05\x9b0j&lt;m\x12G\xe4\x93F:\x11?n\xbf\rc\xc3\x1e\xbf\xfb=\x94"\x1a\x01\xa6Gd\x9b4a\xa0G\xfeH\xbe`\xca\x95*\x03S\x06\x12\x0f\x1e\x91\xb2\xc7\xae\x93V\xd9W\xae\xcf2g\xef\xcd\x8cc\xe9\xe8{f\xa5\xb5\xe8\x95\xe1jw\xde\x8f\xf4\xae\xb7\x9f\xab\x8c\x0e\xc4N\xebv\x1f\xf2\xd8\xde\xf4\xbe\xbf\xef\xdb\x9b\xde\xf7\xb7\x85\xf3\'ZklZ\x9f\xa0k77\x97\xa5\x99\xe5\xba\x99\x97\xd0\x90\xc32\x01h\xe7\xd3\x17\xb3x\xd0\xd9\xa7\xaf\x0f\xdf\xd4\xdb`\xd8W]6\xe6\xab\xf5&gt;0=\x89\xf8VCz~\x86\xbe\xd3\x90&gt;o"\xd7\xd3\xf1D\xc3\x0e\xbd\x1f~\x0e\xc4\xf3\xb7\x91\x16z;0@\xde\xab\x1c\xd7\x085\xbd\xc1\x8b\xe1iWe\xa9\xd6tm\xfe\x7f%I\xab\x9c{\xb7\x87v\xa9\xefN\xab\x1f\xed\xcc\x0eoo`\xff\x0f"K&lt;\x07\x14\xa6u\t\x00\x00w\xe5IDATx\xda\xec\xfd\xd9\xb3\xad\xe9u\xd6\x0b\xfe\xde\xf6kg\xbb\xba\xdde\x9f\xa9L\xb5\xb6\x0c\x96m\xe9\x1c\xec\x03\xb8\x88\x03\xa6\xcc9QAD]\xd4]\x9d\xba\x85?\x81\xbf\xa0\x1c\xa7"\xaa"\xa8[NAA\x01\xa6\x82\xc6\x02\x19\x1b\x1f\xd9\x92@\x12\x96\x94R*\x95\xdd\xde\x99\xbb\xdf\xab\x99\xed\xd7\xbfM]|ko\xcb\xb4\'\xa2\x80\\2\x1e\x11+v;\xe7\x9ak\xbe\xcf\x1cc\xbcc&lt;\xe3\x19"\xc6\x18\xf9\xaf\xd0b\x8c\xd4uMUU(\xa5\x98N\xa7\x18c\xf87\xdf\x0e!\xc4\xbf\xf5\xb8\x7f\xdf\xbf\xfd\xb1\xfd\x81\xe9\x8f\xfb\x05\xfc\x97\xb6\x1f\x07FUU\xb4m\x8b\x14\x12\xa3\r!\rl6\x1b\xfa\xbeG)\xc5r\xb9Dk\xfd\xec1!\x04v\xbb\x1d]\xd7\x91\xe79\x93\xc9\x04)%1Fb\x8c\x84\x10\x10B \xa5D\x08\x81\xf7\x1e\xa5\xd4\x7f\x95\x00\x14\x7f\xd4=\xd6\xd3C\x7fz\xb8\xde\xfbg\x07~vz\xca\xe9\xe9\x19\xd7\xae]\xc3y\xc7\xc5\xf99I\x9arxx\xc8\xc5\xf9\x05UU\xf1\xd2\xcb/a\xb4\xa1i\x1b\xde\x7f\xff}\xde\xfc\xde\xf7\xb8s\xe7\x0e\xd7\xae]\xe7\x17\x7f\xe9\x17y\xe9\xa5\x97\xe8\xba\x8e\xf7\xde{\x8f\xf7\xde{\x8f\x93\x93\x13\x9e\x7f\xfey\x8e\x8f\x8f\xc9\xb2\xec\xd9\xf7\x15B\xfcW\x05\xb0?\xf2\xc0r\xce\xd1\xb6-I\x92 \x84\xa0\xef{\x84\x10\xcf&lt;\xd1\x8f\xde\xfe\x11EQ \x84\xe0\xf4\xf4\t\xd7\xaf_\'\x84\xc8~\xbf\xe3\xddw\xdfCk\xc508&gt;\xfa\xe8#\xdey\xe7\x1d\x1e=~Db\x13&gt;\xf7\xb9\xcf\xd1\xb4\r\xaf\xbc\xfc\n\x0f\x1e&gt;\xe0\xcb_\xfe2\xf7\xef\xdf\xe7\xa5\x97^\xe2\xa5\x97^\xe2O\xfd\xb7\xff-_\xfa\xd2\x97\x10R\x02prrB\x92$\xff\xf6\x01\xfc\x11\x05\xdb\x1fi`\xc5\x18\xf1\xde\x03c\x18\xf3\xce3\xb8\x81\xd5jE\x08\x81\xf9l\xc6z\xbd\xe1\xad\xb7\xdeB\x08\xf8\xe8\xa3\xbb&lt;y\xf2\x98j\xbfGH\xc9\xdd\xbbw\xf9\xee\xf7\xbeG\x8c\x91\xa6i\xd8n\xb7H))\xf2\x9cO\x7f\xe6\xd3&lt;|\xf0\x88\xb6kY\xaf\xd7TU\xc5l6\xa3,K\xf6\xfb=y\x9e\xf3K\xbf\xf8\x8b\xec\xab\n\xad\x14\xff\xe7\xff\xe9\x7f\xe2S\x9f\xfa\x14I\x92\x90$\xc9\xb3\xb0\xa9\xf5\x1f\xcdl\xe4\x8f4\xb0B\x08\x0c\xc3\x80\xd6\x9a\xae\xeb\xf8\xd1\xdb?\xe2\x1b\xff\xf2\x1b\xbc\xf3\xce;4u\xcd\xe1\xc1!7o\xded_\xedy\xfb\x87?\xe4\xfb?\xf8\x01\xb7\xef\xdc\x01 \xcfr\xaa\xba"\x84@\x08\x81\x93\x93\x13v\xbb\x1d\xbb\xdd\x0e\xad5\xce9\xa4\x94$IB\xd7u(\xa50\xc6\xe0\xbd\xa7\xaa*^x\xe1\x05\x9a\xa6a\xb5Z!\x84\xe0\x0b_\xf8\x02\x7f\xe9/\xfd%~\xf9\xcf\xfe2\x07\x87\x07x\xefI\x92\x84\xa2(PJ\xfd\xa1p\xfdG\xc1\xfeH~\\\xfe\xcdC\x1a\x86\x81\xb7\xdez\x8b_\xfb\xbf\xfe\x1a_\xfb\xda\xd7\x80\xc8f\xbb\xc5{\xcf\xd1\xd1!Y\x96svzJU\xd7\x00\xb4m\xcb\xf9\xf99\xd6Z\x92$\xc1{\xcfj\xb5\xe2\xc6\x8d\x1b\xcfB\xab1\x86\xae\xeb\xa8\xaa\x8a\x18#\xc6\x18\x92$A)\x85\x94\x12k\r\xbb\xdd\x16\xe7\x1c\xde{\xbe\xf1\x8do\xb0\\,x\xe3\xf57\xf8\xe0\xf6\x07|x\xe7\x0e7n\xdc\xe0\x8b_\xfa\x12\xcb\xe5\xf2\x8f\x14\xa8\xe0\x8f \xb0\x9e\xde\xce\x9e\xde\xcc\x94R|\xf4\xd1G\xfc\xcd\xbf\xf97\xf9{\x7f\xff\xef=\xfb;\xe7\x1c!\x04\x1e?~B\x08\x1e\xef\x03\xcb\xe5\x92,\xcb\xb8\xb8\xb8`\xbb\xdd\xd2\xf7=!\x04\x16\x8b\x05B\x08\xf6\xfb=J)n\xdd\xba\x85s\x8e\x87\x0f\x1f\x12Bxv\xf3k\x9a\x06c\x0c\xc6\x18\xfa~`:\x99R\x14%\x8f\x1f?f\x18\x06\xea\xba\xe6\x1b\xdf\xf8:!D\xbe\xf8\xc5/rqq\xc1\xfb\xef\xbf\x0f@\x9a\xa6\xa4i\x8a\xbc\xcc\xc9~\xd2M\xfd\xb5\xbf\xf6\xd7\xfe\xda\xc7\xfd"\xfe\xff\xb1\x18#\xc30\xb0\xd9lh\xdbv\xfc\xa1.CK\xd7u&lt;z\xf4\x88\xbf\xf3\xb7\xff6\xff\x9f\xbf\xf3w\xa8\x9b\x86\xc9d\x02@\xd7u\xcf@\xa8\xb5!\x84@UU\x94e\t\x8c^+\xc6H\x9e\xe7Xk\x9f\xe5XY\x96qxx\x88\xb1\x86\xddnG]\xd7c\xfevy\xdb|\xfa\xfd\xdb\xb6%\xcb2\x92$!\xc6@]\xd7l\xb6[\x1e&gt;|H\xdf\xf7\xbc\xf1\xc97\x90R\xe2\x9d\xe7\xde\xbd{\xacV+\x8a\xa2 \xcb2\xe0\'?\xa9\xff\x89\xf7X}\xdf\xf3\xbd\xef\xbd\xc9\xb7\xbe\xf5-\x84\x80\xe7\x9f{\x9eW_{\x95\xa2(xp\xff\x01o\xbd\xf5\x16\x7f\xfd\xaf\xff?y\xf0\xf0\x01\x93II\xdb\x8e\xe1\xae,\x0bB\x088\xe7\t!&lt;K\xf4\x1f?~\x8c\x94\xf22\x9cY\xa4\x94\x84\x10\x00\x90J\xd1v-Jk|\x1f@\x80\x90\x02\x10@D\ny\xf9\xdc%\xc30pvv\xc6\xab\xaf\xbeJ\xdf\xf7H\xb9b\xb3\xd9\xb0\xdf\xef\xb9}\xfb6RI\xfe\xca_\xf9+\xcc\xe7s\xdc\xe0x\xef\xbd\xf7PR\xf1\x99\xcf|\x1a!\xe53\xcf\xf7\x93j?\xb1\xc9\xfb\xd3\x97\xfd\x8d\xaf\x7f\x9d\x7f\xf6\xcf\xfe\x19\x0f\x1e&lt; M3\x10\x90&amp;\t7o\xde\xe2\xc6\x8d\x1b\xbc\xfd\xf6\x0f\xf9\x9f\xff\xe7\xff\x1b\xeb\xcd\x1a\xa5\x9e\x86\x99HQ\x94(\xa5\xa9\xaa\n\xef=\xd3\xe9\x94\xba\xae\xe9\xba\xee\xd2\x8b\xe9g\xa1i\xb7\xdb\xa1\x94z\xf6weY\xe2\x9c\xfbC^\xf2\xe9c\xe6\xf3\xf9X\x07\xbb\xb8 I\x12\xa6\xd3)w\xef\xde}\xe6\xcd\x9csh\xad\xb9u\xeb\x16\xbf\xfc\xcb\xbf\x8c5\x86_\xf9\x95_\xe1\xa5\x97_\xe6\xf6\xfb\x1f`\x13\x8b\xd6\x9aO|\xe2\x13\xcc\xe6\xf3\xf1\x90~\x02\xbd\xd7O\x9c\xc7\xfa\xf1*\xb8\xf7\x9e\xbf\xf5\xb7\xfe\x16E^\xf0\xd9\xcf|\x96r2\xc1X\xc3o\xfe\xe6o\xf2\xbb\xbf\xf7{\xfc\xe5\xbf\xfc\x97\xf9\xeaW\x7f\x97\xd5z\x05\x8c\xc5Q!\xc4e\x05}\xff\xccS\xfd\xf8\x95\xffi\xf2\x1dB\xa0m[\xe6\xf3\xf9\xb3\xeaz\x9e\xe7x\xef\xd9\xef\xf7\xc0\x1f\x84K\xe0Y\xf2&gt;zAG\xd7uXkY,\x16\xecv;\xd6\xeb\xf5\xb3&lt;\xaa\xaek\xd6\xeb5\xbf\xfe\xeb\xbf\xfe\xac\x9dT\xd75\x1f|\xf0\x01\x17\x17+^y\xf5\x15^y\xe5\x95g \xfcI\xbc1\xfe\xc4y\xac\xa7\xd7\x7f\x18?\xfd\x7f\xf5\xaf\xfeUn\xdf\xbe\x8d\x92\x92\x07\x0f\x1e\xf2\xfa\x1b\xaf\xb3\xdf\xef\xf9\xe67\xbf\xc9|6\xe3\xd1\xa3G\xd4M\xf3\xcc\xa3@D)\xfd\xacL0\x0c\xc3%8"O\xdf\x89$I0\xc6&lt;\xcb\x93B\x08Xk\x19\x86\xe1YIa\xbf\xdf?{\x1dJ)\xe6\xf39y\x9esvv\xf6\x0c\xf4RJf\xb3\xd93\xafW\x14\x05\x07\x07c\xa9\xe1\xe2\xe2\x82\x10\x02}\xdf\xf3\xa9O~\x92\xc9d\xc2~\xbf\'\xcbs~\xe1\x17~\x81_\xfe\xe5?\xcb\xab\xaf\xbe\xc6\xc9\xc91\xc6\xd8\x9f8`\xfd\xc4y\xac\xa7\xdeD\x08\xc1v\xbb\xe5\xe0\xe0\x80\x7f\xf4\x0f\xff!\x00\xab\xf5\x9a\x0fn\x7f\x80R\x8a\xba\xae9??\x7fv \xd6\xdag\xb7A\xef=}\xdf?\x0bOeY\xe0\xbd\xa7i\xc6\xb0\xf6\xb4\xe5\xf3\xb4%c\x8cAJ\xf9\xac&amp;\xa6\xb5~\xe6\xed\xac\xb5\x9c\x9c\x9c\xb0\\.\x9f\x15P\x85\x10dY\xf6,\xcf2\xc6\xe0\x9c\xc39\xf7\xac\xf2\xdf\xf7=\x00M\xd3\xf0\xed\x7f\xfd\xaf)\x8a\x82\xe7\x9f{\x8e\x10#\xdf\xfe\xf6\xb7\t!\xf0\xe1\x87\x1f\xf1K\xbf\xf4K&lt;\xf7\xdcs\xcf\x9e\xf7\'\xc5\xae$\xb0~\xdc\x89\xc6\x18\x9f\x85\xa2\xedv\xcbw\xbf\xf3]\xb2&lt;c:\x9d\xf2\xee\xbb\xef\xb2Y\xad\x90J\xd14\r1F\xda\xb6}\x06\x98\x18\xe3\xb3\xd0\x06&lt;\xf3N\xde\xfbg \xc9\xb2\x84\xb2,\xe8\xfb\x9e\xb6\xed\x10B&lt;+E&lt;-^\xb6m\xfb\xac\xf4\xf0\x14P\x00EQprrBY\x96\xcfz\x81\xc7\xc7\xc7\x1c\x1d\x1da\x8c\xe1\xf6\xed\xdb\xcf\x1e+\xa5D)\x85R\x8aa\x18h\x9a\xe6\x0f\x95&gt;\xfa\xbe\xe7\xf4\xec\x8c4M\xa9\xaa\xeaY\x0e7\x9dNI\x92\x84\xe3\xe3c\x94R\x1f\xf7\xd1\xfco\xb6+\t,\x18A\xf0\xe0\xfe\x03\xd6\xeb5/\xbc\xf8\x02\x93\xc9\x84\x8b\x8b\x0b~\xf7w\x7f\x97\x18\x03\xeb\xcd\x86\xbb\x1f}\xc4\xed\xdb\xb7\xd9l6\x7f\xe8f\xf7\xd4\xa3\x01\x7f\x88u\xf0\xe3^Fk}\xe9\x95\x12\x9a\xa6}\x96/\xfd\xf8WUUH)q\xce\xf1\xd4W\xc4\x10q~\xfc\xb3\x92\n\xef&lt;\x0f\x1f&lt;\xc0y\xcf|&gt;G)\xc5~\xbfG\x08\xc1n\xb7{\xf6\xf3\x18c\xc8\xb2\x0c\xa5\x14!\x84g\x14\x9d\xa7\x1f\x82\xbe\xef\x9fU\xe9\xa5\x94\xdc\xbf\x7f\x9f\xedv\xcbt:\xe5\xc5\x17_\xe4\xe0\xe0\xe0\xd9c\x7f\x12\x1a\xdaW\x12XO\x8b\x8d\xdf\xfc\xd6\xbf\xe2\xab_\xfd]~\xe6\xf3?\xc3\x7f\xff\xe7\xff\xfb\x11\x08y\xc6\x9d;w\xf8\xbd\xaf}\x8d\x0f\xde\x7f\x9f\xe62\x7f\x92R""D\xe0)\n\x9e\x82*2z\xae\x10\x03qL\x8b\xc8\xb2\x94\x18\x03RH\xfc\xe0\x18\xba\x1eb$D\x90\xca\x02\\\x16?5yj\x19\xfa\x0e) /r\x94\xd2l\xb7;\x9a\xba\xa1\xef\xc6\x90\x16$\xf4!\x12\x06\x8f\xeb\x07L\xa2\x91r\xcc\xdd\x12cH\x8c\xa1\xebz\xba\xc1\x11\x83\'1\x8a\xe5b\xcen\xdf\xb0\xde\xee \x8e\x85\xd6\xa7\xd5\xfe\xa1\x1f\xf8\xd1\xdb?\xe4\xda\xb5\x13\x1e&gt;|\xc8\x0b/\xbc\xf0,_{\xea1\xaf2\xb8\xae\\\x99\xf7\xe9\xa7\xd89G\xd3\xb44m\xcb\x83\x87\x0f\xd8\xefvL\xa7S\xfa\xae\xe3w~\xe7_p\xe7\xf6\xedg\xa5\x02\x18s\xaf\xe1\xd2\x93\x10\xff\xa0\xad\xa3\x94DIA\x0c\x01"\x97\xf9\xcd@\xd7\xb68\xe7\xd8W\x15\xfd\xe0\x88\xc8KPF\x88\x0e)&lt;ZE\xa4p\x84\xd0\xe3\xa3\xc7EO7\xf4\xb8\x18\x90F\xe1\x82c\x08\x0e\x9d\x18\xe6\xf3\tV\x0b\xac\x96(\t\xae\xef0F\x93\xd8\x844\xcdPR\xe2\xbd\xa7\xc8\x0b&amp;\xe5d\xcc\xd3b\xc4X\xc3tR&gt;\xf3Fi\x9ar|t\xc4\xc1rI\xf0\x91\xb7\xbe\xff\x03\xfe\xc1?\xf8u\xde|\xf3\xcdg\xa5\x90\x9f\x84\xfb\xd6\x95\xf5XeY\xf2\x99\xcf|\x86\xdb\xb7o\x93e\x19]\xd7\xf1\xc3\x1f\xfe\x90\x7f\xf5\xcdo\xf2\xce;\xef\xd2u\xdd\xb3\xff\xfb\xd4~\xfcM\x17\x02\x84\x88\x88\x18\xc1G\xf4\xe5\xad\xcf\x8bH\x9aXD\x0ctMG\x9ae`4\x83s\xc8\x18\xd1R \x89\xa4V\x13\x88D)\x19|$\x00\x11\x89o;\xda\xbe\x7f\xe6\x19\x85\x88(%\x98\x169~\x18\x18:\x87\n\x9e\xdeE\xb4T\xb4q\xc0\x05A\xc4\x13\xbc#5\x02\xa94\xbb\xbdc\xb3\xad\x08\xc1\x91$\x96(\xfe\x807V7\ru]#\x94\xe4\xf4\xec\x9c\xaf}\xed\xf7\xb8q\xe3\xc6\xb3\x1cn\xb9\\rpp\xf0,\xa1\xbf\x8a\x9e\xeb\xca\x01\xeb\xc7oq\xcf?\xff&lt;\x87G\x87|\xeb_}\x93"\xcf\xb9}\xfb6\xdf\xf9\xfd\xdf\'\xf8\x001"~\xec\x868\x0c\xc3\x8f?\tRI \x00\x01\x15#\xa9\x14\x18-\x112\xa0d\x1c\xc3Tn\x19\x9c\xa3n{\x92\x18\xd0B`\xa5\xc0*Ef\x13Z\xef\x10i\x817\x19\x8f\xcf\xd7\xc4\xbe\x1d\xc3e\xf0(\x01Y\x9a\xa0\x84d\xa8j6\x12t\x92R7\r\xfd0\x90\x18\xc5\xa4,\xd8W\ru\xd7\x00\x02\xbc\xa3\xdeo\t\x08z/@*\\\xd7\xe1\xdc\x80\x10\x80\x88\xacV+\xd6\xeb\x151\x8ey\x99\xd2\x8a\xedv\xcbo\xfd\xd6oQ\x14\x05\xaf\xbc\xfc\n7n\xdc\xa0\xef{\x0e\x0f\x0fI\xd3\xf4\xe3&gt;\xb2\x7f\xa7]9`\x01\xcf\x12\xed\xe9t\xca\x17~\xf6\x0b|\xfdk_\xe7o\xfc/\xff\x0b\xbb\xdd\x8eG\x8f\x1e\xe3\x9d\x1b=\xd3e\x1d\xe9\xd9\x0f\xa35\x11\x81w\x1e\x88\x18)H\xa5\xc2\x88@\xaa$\x89\x08$\n\xb4\x16\x04&lt;\x91\xc0 \x02\xa5\xf1H)\xb0\x12\x8c\x08\x18-\x90\xb2c\x17&lt;\x83W8\xa5I\xf0\x14\x93\x1cb\xa0\xa9\xf7\x18%\xc9\xad"I\x12\xaa\xbd\xa3mZ\xaa\xb6\'\xcbs&amp;\x93\x82\xeb\x07K\xeajGi\x05J@\xd39 \xd0u\x1d&gt;@\x10\x12\xa1,Z\x9b\xd1\xeb\x8915\xf4\xde\x8d\x9e\xd5\xff\x01\xcd\xb9\xebz\xde{\xef=~\xf8\xd6[&lt;w\xeb\x16I\x9ar\xe7\xce\x1d\xd6\xeb5o\xbc\xf1\xc6\x95l\xfd\\I`=\xad^\xc7\x18y\xed\xb5\xd7\xf8S\x7f\xeaO\xf1k\xbf\xf6k\xdc\xb9s\x07\xe7\x06\xa2\x88H).\x01\x18!F\xac\xd1c\xbe\x15\x05\x8a\x80\r\x91T@) 1\x91L\tR\t\x99\x8a(\x15\x18;|\x01\x91\n\x82\x17$\x89%\xb3n\xcc\xab\x88D&lt;CTl\xfa\x9e\x96\x1d\xb3\x99\'j\x85\x88\x01\xf2\x844\xb1\x97y\xdd@\x16\xa0sP;G\x12[\x0e\xb3\x94\x85h\xd0n\x8b-%\xbd\xd0&lt;\xba\xa8i{1\xe6UJ \x08\xb8\xd0c\x12\x8b2)\xc3\xd0\xa1/\xebe]?\xd0\xb6\xdde\xa2\xcee!\xb7\xe7+_\xf9\n\xaf\xbc\xfa\x1a?\xfb\x85\x9f\xa3\xaaj...\xf0\xde\xa3\xb5\xber\xe1\xf0J\x02\xeb)c\xf3\xe2\xfc\x827\xbf\xff&amp;\xdf\xfe\xf6\xb7\xff\x80E\x10\x02y\x96&gt;\xab)\xa9\x18\t\x83\x03\xef\x11a\xcc\xa5\x8c\x8c\x94ZP\x88H\xa9!\x11\x91\xd48\x8c\x84\xc2J\xb4\x8c\x88py\xc01`s\x895\x81,\xd5$Fb\xa4$\xb1\x864-\x88B\xe1\x90\x0cQ\xb2\xedF\x06\x83V\x82\xc4\x1a|\x14\xd4m\x8f\x0b\xd0\xf6\x9e\xaa\x1f\x18\x82#1\x8ey*17\xe7\xd4\x01\xee\x9e\xafP\x13\xcd\xba\x91\xb4\x01\x12\tS\x0b]\xe7\xa8\x05\x0cJ@\xd4\xcf&lt;5!2)\',\xe6\x0b\xa2\x10\\\\\x9c\x8d\xd5\xfb\xfd\x8eo\x7f\xfb\xdb\xfc\xb9\xff\xdd\x9f#\xcb\xb2\xcb\x90\x19\xafd\xcb\xe7\xca\x01+\x84\xc0j\xb5\xe2k_\xfb\x1a\xbf\xf1\xe5/s\xef\xee]\xce\xce\xcei\x9af|\xc1Z\xd3\xf5=J*\xe2\xe5\xff\x07\x10!\x92jE\xa6#\xb9\x80\x89\x86R\xc1\xccJ\x8c\x14h9\x86N#\x03\xa9\x96H\xc0\x10)RM\x99[\xb4\x02)\x15Z*r\xa3\x99f\x19E\x9a2\x9f\x94\x18\xa5p!P\r\x0e\x89\x00\x11P\xda\x10\xa2`\x08\x82!\x04\x02\x82\x81@\xd5\x0f87\x90H\x89\x1b"\xa7\xfb\x1a9\xb1dZs\xdaD\xb6\x03\xc80p\\\x1a\x9c\x0f&lt;\xda{\xb6\x0e|\xf0x\xe7p! \x84&amp;\xcfr\x8a\xb2$M3\xb2,!\x04GQ\x14|\xf2\x8d\xd7\x9f\xb5\x8d^}\xf5\x95+[\xdb\xbaR\xc0\xf2\xc1\xf3\xe4\xf1\x13\xbe\xfcO\xff)\xbf\xf9\xcf\x7f\x93\xc4X~\xf5W\x7f\x95\xfb\xf7\xef\xf3\xd7\xff\xfa\x1d`\xac\x068\xe7q"".\xc3\xa1U\x92\x0cA&amp;`B`\x99+\xa6I\x1c\xc3^t\xa8\x08\x99\x12\x18\xa5\xd0r\xcc\xbd\xf2\xc4\x90ZC\xaa5e\x9e#\x84 \xca\x88\xd1\x8a\xdc\x1a\nc\xc9\x93\x84&lt;\xb5X\xa3\x08!R\x86q \x03) F"\x82\x10&lt;\xce{\x02\x02\x1f%"\xd3H\x99\x83\x10x\x04\xd7\xea\x8ck\x85\xe1\xb4\x1ex\xb8k\xb8\xbfi\xd8\xf4\x82\xc1+:/\xb1\n\xae\xe5\x96\xb6\x85\xfd\xe0Y\xb5=M?\xb0\xdelYov\x848^@\x8a"g\xb9&lt;\xe4\xc9\xe9\x19\xbf\xf7{\xbf\xcb\xeb\x9fx\x9d\xc5\x17~\xf6\xb2pw\xf5\xec\xca\x00+\xc6\xc8n\xbb\xe37\xbe\xfc\x1b\xfc\xfa\xaf\xff\x03~\xf9\xcf\xfe2\x7f\xf1W~\x85\xcdv\xc3\xe3\xc7\x8f\x99\xcd\xa6T\xd5\x9e\xa1\xeb\x08R\xe2cD!\xb0\x02r)(\xd4\x18\xf6\x96V0\xcb \xd7\x02MDF\x81\x8c\x01\xab\x05\x89\x16XcH\x8c\xa6H,\x89Vh)1Z\xa3\x95\xc6\xe3\xf0C\xcf\x10\x02h\x83\x12\x82\xa1\xef\t^^^\xed%Z\xe9\xb1_\x19\xe3\xf8\xef1\x10\xbcG(Eb4R\x08\x94\x84\x18A(M\xa2-\x991\x1c\xba\xc8q\xd31?[\xf1h[\xd3zI\x1f$\xbb6\x12\x84gP\x06Q{\xbc\xb08\xd7\xd2\xb5\rR]r\xc1\x04\xc4\x98\xd14\r\xdf\xfa\xd6\xb7\xb8~\xfd:\xf3\xf9\x82\'\x8f\x9fP\x96%F\x9agL\x88\xab\xe2\xb5\xae\x0c\xb0\xbc\xf7\xdc\xbe}\x9b\x7f\xfc\x8f\xff1\x9f\xfd\xec\xa7\xf9\xd5_\xfd\xdf\xf3\x9d\xef|\x87\xbf\xfd\xff\xfe\xdb|\xff\x07\xdf\xa7\xaa*\x0e\x0f\x96\xf4]K\xdb44u\x8b\xf0\x03\xb9\x10\xcc\r,\x12\x98X\x98\xd8\xd1SY"\x82\xb1p\xaa\x84\xc0*\xd02"E$1\x9a\xd4\x1a2k\x90\x08\xa4d\xf4&lt;C?z\xac,\xc3\x1a{Y\xc0\x7fJ\xe4\x03wY\xb8\x15B\x82\x1c\x9b\xd3\x01\x10\x97=&lt;\xe7\x06\x14\x82("\xc1y\x94\xb1$6Ag\x96\xa4\xed\x99&amp;9\x87\xb9\xe5\xc9v\xc7\xa6j\xd94\x8e\xaaP\xec\xba\x81\xbd\x83\xae\x0b\xec;\xcf$OQ\xda\xd3v\x1dc\xc9d\xfc\xfe\xdb\xed\x96\xc5b\x811\x86\xaf\x7f\xfdk\x1c\x1f\x1f\xf1\xc2\x8b/0\x0c\x03\xc300\x99L\xfe\x9d#f\x1f\x87]\x19`\r\xc3\xc0\x9d\x0f\xef\xd0\xd4\r\x7f\xfa\xbf\xfb\xd3\xacV+\xfe\xc6\xdf\xf8\x1b\xfc\xd6o\xff6F+Rk0\xca`\xf2\x14\x15\x03b\xe8\xd1\x08\xe6Vr\x98\n\xe6i \xd7\x01+#Fxd\x00\x90H!\xc7\xfcIx\xb4\x1ekTVI\xacVdI\x82Q\x8a\x18"!\x06\xa40L\xcb\x92\xf9\xa4\xc4*\x8d\x04\xa4\xbc&lt;V!\x10J\\\x12\xfb\x02Z(B\x04\xe7\x02\x08\x89\x94cX\x04A\x0c\x11\x1f\x02\xb1\xef\x90B \x85$\xd7\nG +\x0c\x8bdN\xbb\x8c\x9cn*\xb6\xbd\xe7\xd1j\xcb\xaa\x0f8\n\x9a\xd0\xa0\xa2%+\x13vUE7t\xc4(i\xdb\x96\'O\x9e\x8c\x14\x1ecY\x1e,I\xd3\x94\xf6\xb2\x83\xf0\xe3\xad\x9e\xab`W\x02X1F\xfa\xbe\xe7\xfe\xfd\x07,\x97K^y\xe5U\xbe\xf2\x95\xafp\xf7\xde]\x16\xcb\x05}\xdb\\\x1e\x90\xc0u\x03\xa1o\xc9d\xa0\xcc4\xcbD0\xb7\x91\x89\x89\xa42r\x99[#\xa4 F.\xcb\x12\x8c\xfdB\x14FI\x8c\x10h@\x85\x80V\n\xa9\x15B\x19\x92\xa4\xc4j\x83\x12\xf2\x19=&amp;z\xc70\x0c#]Yi\xb4\xb6\x88K\xea\xb2\xd2\x06\x1f\x00\xe2\xb3J?\x00JC\x88\xb8\x10\t\xbd\x07&lt;I\x9a\x13\x82C\xc4H\x9e\xa6\x94RQ\xa4\x19\xfb\xdea\xb5\x84\xb3-^j\xda\xa0\xe8/j\x9aA\x90&amp;\x19A)|\xef\xc9\xcb\xecY\x92~zv\xca\xe7\x7f\xfa\xa7\xc9\xb2\x9c\xc7\x8f\x1eqpx\xc8l6\xbb2\xde\n\xae\x08\xb0\x9eRU\xd6\xeb5\xc6\x18\xb4\xd6\xdc\xbes\x9b{\xf7\xef\xa3\xa4\xc2\xda\x84\xc4(|\xd7\xd2\xd4{\x84\xebI\x15\x94VP\x18HU\xc0H\x81\xd1\x9a\x18 \n\x8f\x92c\x8dK\x8a\x88\x96\x12\x85"5\x86\xdcZ\xf24e\x96gX\xa5\xd0J"\xb5B\x1aM\x9a\xa4()\x89!\xe0B\x18\x1f\'-(\x8d\x14c^\xa5\x8d%\xc6K\x86\x83R\x97a0B\xbc\xbc\x99I\x85\xd4\x06e\xd2\xcb(&amp;\xf1!\xd0H\x8d0\tZ\x8em\xa5\xe8\x03\xa9\xb5\x08\xa5\xb8\xbe\x98\x12\x02\xc4\xcd\x9e.h\xba\xdep\xdeI\xb6A\xd0I\x83M-\xf3\xe9\x0c!\xc43&amp;\xea\xfd{\xf7x\xef\xddwy\xfd\xf5O&lt;\x0b\x81W%\xbf\x82+\x02,\x18s\xa1&lt;\xcf\xc7Ch\xc6\x16\x88\xb5\x16!$e\x91\xe3\xba\x86\xaek\x11!\xa0\x05\xa8\xe8QD\xb4\x92h56\x9b\x85\x90H5z\'\xa3"Q\x825\x90YC"\x13\xa6E\x86Qz\x04W\x92`\x84@*\x81\xd0c\xce\xf4T\x0cdll\xf7D\x01\xd6\x18\x04\xe3MP /\x1b\xdc\x81\xe0\x05&gt;\x8c\x1eJi\x83\x12\x91\x18&lt;H\x8dL2$\x12\x11%\xf1\xb2\x88\x1b\x85 \nP\x89\xc1w-Bz\\\xdf\xa1\xa2\xa7\xb0\x92\xa3iJ\xe7{\xfa\xd0R\xa5\x02\x17"\xa0\x91Vc\x93\x14.\xa7\x91b\x8c\xcf\xf8[G\xc7G\xcc\xe6s\xd24\xbdR\xa0\x82+\x04,k-\xb7n\xde\xe4\xab_\xfd*\xbf\xf9\xcf\x7f\x93\x1f|\xffM\xa4\x10\x1c\x1e\x1c`\x94\xa4\x0e\x8eA+\x82\x03+ \x13\x92D\xfa\xb1\r\xa3\xc4H\xd3\x88\x97\x15y)0R\xa0\xe4X\xc8\xcc\x13K\x99f\x14Y\x82R\x92T\x1bLb\xd1B\xa0/\x87$\x90\x82!&lt;\xe5\xc5\x8f7&gt;\x85@+\x83\xd6\x06\xa94\xc1\xf7\xf8\xe0\x91HR\x99\xa0\x94&amp;2\xde\xfe\x94\x18\x1f\x1bL\x82\xc8K\x88\x82\xe8\xc7\xd6\x8c\xc7\x13\x83\'\xe2q@\x14\x12A$\x04\xb0R\x93YA?8N\xa6\x05\x1eA;xz\xe70*aZ\xce\xd1i\x8eR\x8a\'\xa7g\x081Ni\x9f\x9c\x9c\xf0\xf9\xcf\x7f\x9e\xa2(\xae\xe4,\xe2\x95\x01V\x9a\xa6\xfc\xcc\xcf\xfc\x0c?\xf8\xc1\x0f\xf8\xcd\x7f\xf6\x15\xde|\xf3{\xa4Y\x82\x92\x91\xae\xae\x89C\x8f\x8a\x9e\xdcH\n\x9d\x90\xe0I\xe3\x80\x11\x01uIz\x91b\x1c\xc3\xd2Jb\x94&amp;5\x9a\xdc&amp;\xa4\xc6\x90\x18K\xdb\xb4\x08\x06\xect\x062\xc3X\x8b\x14c\x0ef\x8d\xc1J=z-\x01\nPR\x92(u\xd9jQ\x04-\x88J\xe0C@\n\x8d\x92\x9a\x18\xc7z\x15J\xa3M\x82\xcf2d6A\n\x83\xf6\x81\xbe\xedPn\xa0\xadw\x04\xdfQw\x03F\x88K\xf6C\x82\xc0\xa3\x95F\x1bG\xd6y\xe6i\xc2\xd1\x14\x06\xdf\xf3\xb8\x8b\xb8\\\x93LK\x02#\x9fl\xbdQh\x14]\xd7\xf2\xf8\xf1c^x\xf1\xc5\x8f\xfb\xe8\xfe\x9dve\x80%\xa5\xe4\xf9\xe7\x9f\xe7\x7f\xfc\x1f\xfe\x07\xb6\x9b5\xdf\xfd\xde\xbfFH\xa8\xea=\xd2\x05\x86\xb6\xc1\x10(\xacF\xfb\x0e\x11\x06\x8c\x0eX)Q"\x8e\xc5O%!\x06\xd2\xc4\x92(E\xa2\xc6\xdbd\x9eeH\t}\x17@(P):-\xc9\'#\xa5\xd8\x0f=H\x81\x8a\x0ekG\x0f&amp;\x18\x93\xff(\x19\xbd\x8d\x88\x0c\x11\xa20\x08+\x81\xb1\x89\x1c.\xe9\xcf\xe8\x14\x91\x14\x90\xe5\xf8\xa4@\x98\x14\xa3\x0cb\x18\xf0\xce!\xea\x1dCW\x11\x87\x16\x15&lt;^\xb4\x84\xa1#\xca\x800\x12-$\xda\tL\x88\xa4z \xd7\x82i\x944q`:)I\xca\t&amp;1\xf4\xc3@p\x91\x87\x0f\x1e\xf2\x1b\xff\xe4\x9fp\xeb\xd6-^y\xf5\xd5\x8f\xfb\xf8\xfe-\xbb2\xc0\x82\x11\\\'\xd7\xae\x8dt\x99\xc3C\xd6\x9b\x15y\x9a\xb0\x98N\xe8\x85\x87.\x90\xc4\x9e0\x0c(\xdfc\x8dB\x8b\x91\xee\xa2\xa5\xc0(\x81\x96\x06#%F)\xb2$e:)\xb1zL\xb0\x85\xd2\xe8lBRL0\x93\x051\xcd\x88\x02t\x16\xc7\xbc\xa9\xaf\x80\x08:\xc1\xc5Q8\xcd\xcb?(QH\xef\xd1J\x81\x1e}\xa4\xd6vdXh\x05\xb6\xc0\xdb\x02U\xce\xb0\xc5\x94(-Jh\xa4s\xd4uM\x9a\x16\xc8vOh*L\xf0\x0c\xaa\xa2\xddm\xe9bG\x94 \xb5\xc1\xa6\t\xa9\x1f\xc8\x93\x9e2q\xb4B"\x8d$\xba\x16-\xa7\x9c\\;A\x08\xc9\xc5\xd9\x9a\xcdj\xc5w\xbf\xfb=\xbe\xf7\xbd\xef\xf1\xfc\x0b/\\9&gt;\xfc\x95\x02\xd6\xd3\x04T\n\x81V\x92\xb2\xc8\xb8vx\xc0Dk\x9a\xbe\xc6\x85\x1a\xed#\x18\x85\xd2\x9aTE\xd4eM)\xd1\x97\x9fz%\xd1R\x92\xa7\t\xd3\xb2d6\x9d\x12\x82C+\xc5Dk\xb4\xcd\x11Ra$\x0c}\xc30\xf4$\xd6\xa0\x95\xa4u\x81(\xd4\x08\x1e\xa1\x91F"\xb4 \x12\t""\t \x05&gt;F\xc2e\x89\xc4\xc5@\xf4\x02\x19$2\x1a\xa2\xed\t\xa6G\xa7\x06\x88\xf8\x18\x90Vc\x92\x04c\r\xbd\xd2\xd0\xb5\xa4\xca\xa2\x8d\xa5\xa9W\xd4\xd5\x1a\x1b\x06$\x81\xd4h\x16\xd3\x12\xa12\xbaU\x07\xd6\x12\xa5$\xba\x9e~p,\xe6\x0b\xb2$\x7f\xd6#\xbcw\xef.n\x18\xe0\x8a\xf1\xb2\xae\x0c\xb0\x9er\x8f\xb4\xd6\xf8K\xda\xcc\xeb\xaf\xbeBi\x0c\xfdzE\xeb;\xc2\xd00\xb4{\xac\x18[4V\t\x12\xad\xc6\xbe\x9f6H \xb5\x9a,\xcb\x98\x14%\xa91H\xa5p\xdea\x92\x14\xa4\xc4\xf9\x01%\x04u\xdb\xa0\x94A\xab\xb1D\xe1\xc2@b\x0c1B\xf0\x1d1\xf4h\xa31A\x12\x86\x81&gt;x\xacV\x04\x15\tR\x11\x10cAR\x8ey\x9d\xd2\x02i\x041:\x86\xb6&amp;\xf8\xc8\x98\xfeC"%\xd1y\xa4\xba\xac}y\x8fT\x1a+\x05Qz\xfa\xbe\xc6\xb7=JH$\x812\x1b\x15n\xca$2h\x8d\xcdR\xa2RH\xa1@Y\xda\xa6{6}\xd4u=\xe1\n\x15F\x9f\xda\x95\x01\xd6S\x1be\x82\x1a\xae\x9d\x9c\xf0\xda\x8b/\xd1m\xd6\x9c\x9e\x9fbD\xc0\xc9\x80R\x82TJ\x8c\x02\x11#FIRc\xc9\xac\xc5HM\x9e[\xb24%1\x16k\x0cJi\xa4\x0e4\xbd\x1f\x9b\xcc\xf9\x84b\xbaDH}Y1\x97\x10=\x82@\xa2""\x0c\xf4]\x87s-\x12\x85\x8a\x1a\x19\x02\x081\x02J(\xb4\xcd\x89r\xac\xd8+\xa5\xc6\xfc,-\xd0\xd9\x04UN\x89I\x8e\x0br\xac\xa3i\xc5\xe0\x06|?\x10D\x18\x9b\xe7IB\xf4\x91\xc19L6\xa1Xx\x9a\xb5\xc4\xd7;\xd0\x0e\xdfw(\xa04\x02g\x04\xc4\x80\xb1\t\xcb\xd9\x9c}\xe7i\xdb\x91\xafuxx\xc0|6\xbfra\x10\xae\x18\xb0B\x08lw[\x067\xf0\xe2\xf3\xcf!|\xc0D\x98\x15\x05\xfdF\xd3\x89\x80\x10\x1e!%\x82\x80\xbc,\x8a\x1am\xd0b\xfc5\xb3\x96"K\x11H\xa4T\xb4]\x8f\x0b\x01e5EY"\xad!DGjS\xb4\xb6\xf8\xde\x11\x83\xc3j\x85\x17\n\xa5-F\x98?\xa8WE\x89P\x1ac\x13\xd0\x1a\'$6/\x19\\\xc0\r#\xab!\x02\xce\x0b\x82\xb2X\x9b\xe2\x84\x1a\x81\'\x001\x86S\x13\x07\x06\xd7\xe3\x01\xad-\xd2*d\x88(\x06\xb4\xf7\xc82\xe2z\x07\xaeC)Gn\xe1pj\x08A\xd0\xe0!\x0c\xb8\xae\xe3\xc5\x17^F\x9a\xc7&lt;z\xf4\x98\xf9b\xc1\x8b/\xbd\xf8\xc7\x0c\xd2\xff\x98\x8dr\x8e\x8e,\xb1h\xa0\xa9v\xc4\xb6\xa1m*|\xd7\x90\xc6\x88T\x02-\x03\x9aH&amp;\xd5\xe8\xbd\xa4\x04%\xd1iJ\x9a\x14x\x17\x89a \xa8q,\xcc*\x8d\x08\x01\xe5A\xa21R\x12\x83#b\xb1i\x8a1\x05m[\x11\xaa\n\x1f\x1cD\x87\x12\x82\xe8\x18o}\x12\x84\x96De.\xdb8\x01\xdfw\xc4a\x80$E\xd9\x02\x92\x14D$\xb8\xe1\x92\x1b5\xd6\xb5\x86\xe8QV#\xad\x01\x11H\x84 DO\x8c\x0e\x95\x82\x8b\x82\xa6\x05\xb4\xc5\xe7%J\x0bT\xdf\xe2\xda\x0e\x15{fH\x84p\xb4C\x83U3"\x81\x1b7\xaf\xb1\xdem\xf0&gt;`\xec\xd5\x1c\xbf\xbfR\xc0\x12B\x90$\t\x8b\xc5\x9cG\x1f\xbe\x0f\xde\xb3Y_\xa0\tL\xf2\x9c\xae\xdb\x12\x02\xe4\xd6R\xa4\x1a\x13\xc2\xc8\x15\x17\x824IH\xac\xa5\x8b#\xdf=\x12H\x94F*I\xd3\x8d\xa3\xf3:\xcb\x98\xe8\xd98\x10\xe1\x1d\xaeo\x11:E\x88\x11\x80RH\x10\x918\xce\x89]\xb6h$HI\xb8l\xd9\xc4\x18\xf1\xc3@\xf0\xee2\'4\xa05\xc2\xa4\xe8$\x03!\xa8\xea\n\xa5\x0ci\x96\x11\xa5\xa2\xf3\x1e\x17A\xeb\x9c\xde5\x18\xa9!x\x84T\x80\x85L\xd0\x0b\x8d\x14\x11z\x83\xe8ZB\xdc\xa2|\xc4\x86H\x91X\xf2|\x823\x06\x9c\xc7\xa6\x96k\xc7G\x9c\x9f_\xb0\xdbn\x9f\x91\x1d\xaf\x92])`=\x1d\xa3\xff\xe8\xa3\x8fH\x13\xcb\xfet\x85Q@\xef\x88\xbeC\x89Hj-eb(\xd3\x14\x19\x1d\xa9\xd6\xa4\xa9%K\x13\xa4\x00\x1fAi\x85@\x12\x84\xc4\x85\x88MR\x12\x9b\xa0\x84&amp;x\x8f\x91\x1aADx\x8f\x94\x03\xb1\x17\x84\xd0\x13\xfd\x80\x14ad\x13\n\x90\x89\xc1\xd8\x04\xa9\xe4\x18~\x85\x80\xcb^\xa2g\xfc\xbd\xd0\x86\xa0,\x1e\ta|N\xa3\x05V\x83\xeb\x1a\x9c\x90D\xad\tz\x0c\xb3\x99\xb1t\x97K\x0b\\\xd7\x13\xbd#M\xcaq\xee\x11\xf0J\xa1m\x8a\xd0\x86\xa8\x13\x86\xcd\x86"\xcdP\x93\tCVPw-I^P\xa4)~:\xa3\xa9\xeb+\xc5jxjW\nX!\x8c\xcaw\xd5~\x8f\t\x03\xf8\x1e\\K\xbd=\xa7\xdf\xae\xc8e`\x9a\xa5X)\xd1\x02\x8c\xb1Xk\t\x08\x9a~\x00\x02\xca\x18\xa4\x87\xe0=0\x10}\xa0\xc8r$\x10\xa2\x1f\xe96F!cD\xc9\xc8\xd05@\xa4\xef\x1b\xac\xd2h\xa9.\x85\xd7\x14R\x19\x84\xb1H!GV\x962\x08\xa9\x89x\x84p\xe3\xef\xb5\xc1\xabq:HI\x89\x94\xe0\xba\x8e\xbe\xefF2b\x9a#\x95!\xe2\x18\xfa\x01\x94\xc4$\x82\xb6\xaa\t8\x84\x8c\xf4\xce#\xa5A&amp;\xd0GO\x10\x02\x93+\nah\x07G+@^~\x10\xca\xb2$z\xc7\xe1\xc1\x01M7\x8c\x03n\x7f\xec\xb1\xfe\xe3&amp;\x84\xa0(r\x9a\x8b\x1d]\xbd\xc7o\xd7\xe80V\xc4S\tFI\xec%\xeb3\xb1\x86(\x04M\xe7\xf18\xa2\x14\xec\xb7\xbb\x91\xba\xec\x1cJ\x8et\xe42\x0bL\x8b\xc8\xc1\xe1\x92\x18\x05:F\x121\xd6\xcb\xbc\x0f(-\x99LgD$"\x04\x8c\x04e\x0ch\x03c;\x19\x05D\xad\xf0\x8c\x933\xcaXl\x92\xa2\xd3\x82\xa8\x93\xd1\x831\xde\xf4\xda\xaeF\x0b\x05R\x13\x86\x9e\xb6m\xf0CO\x0c#\xbdfl\x98\x8f\xc4@7\x0c$6C\x9b\x1c\xa5-I&gt;\xc1\xb5\r28\xa4\x0fdy\x89\x0f\x91$U\xa0\x04&amp;\xb3\xac\xeb\x86(%\xdaj\xea\xae\xa5\xaa\xea?\xb4\xac\xe0*\xd8\x95\x03V\x8c\x91z\xb7G:\x8f\xf0\x03\xc2u\x84\xaef\x9ahr\xa5Fv\x83\xd6\xa46E\xc8\xb1\xa8\xb9\xed\x06.\xda\x9a]\xe79\xab\x1b\xda\xde]j\\i$\x82\xd9DR\xf60\x1f"\'\xcb\x19\xd7\x84f^&amp;$(Tj\t\x02Tb\xd1:EE\x8f\x04\x84\x92`\xc6\x81\tB$\x86@P\x12\xa1\x14\x9a\x08~\xa4\xf7\xa8\xc4`l\x8a\x8a\x02\xe7\x06\x1a\xe7\x18\x84a\x00\xba\xba\xa3jwTm\x83\xdf\xef\x08\xc3@\x92&amp;\x84\xe0\xc9\xb2\x04\xc2\xd8~2\x13\xf0\xd2\x80\xd0X\x9b\x92(\x83p=\xd1\r$EN\xb3\xdb\xe2\xea-\xba\xd0\xc8\xa1E\xfa\x01-a9_\x10\x85\xa2\xaa*\x0e\x0e\xae\x96\xf2\xf2\x95\x02\x96\x94\x92&lt;\xcb(\xf3\x9c\xd5\xea1}\xb5\xc7W;\xa6F\xa2/\'\x9a\xb5\x19\xf3\x1e\xa1\x14]\xd3\xd3\xa1Xw\x91\xbb\xeb\x9aG\x9b\x86V\x08\xf2\xa2\xa4\n\x92\xd0\x04\xe6\xf3)\xdd X\x07\xcf^x(\x05\xbev\xec}\xc7,7,\xe7S\xd2,%Z\x8d-\nt\xf0(?\xe0\xfc@\xd0c\xc1\xd4\r\x03\xa2\x1fP\xd6"\xb5F\x11\xf1CG\x88\x10\x86\x81A8\xean\xa0i;D\x9a\xd2a\xd9\xed*\xd6\xab5\xdb\xdd\x96\xbam\x99\xe49Z%\x9cnj\xdc\xd0\xa1\x89\xa8\x189Z.ph\xa6&amp;A\xcaHp\xe3-w\x14@)\x90\n\x04\x9e\x8b]E\x9aM\x19\x9a\x1a1DR!\x11\xd2P\xfb\xf0L\xae\xf2*\xd9\xd5\x02\x96\x10L\xca\t\xb3\xe9\x94\x07oo\x10\xd1c\xa4@D\x87\x16\x92&lt;\xb1\x085R\\\xfa\xc1Qu=\x83J\xe9\x91\xf4\xd2\x12l\xa4k\x03\xed\xb6\xc71*\xc9(\x1b\xc8\xecx\xab\xea\x11&lt;ZWT\xbdcQ\xe6\xa8t\xce\xccN M\x88F!l:&amp;\xef\x83"\xf4\x02a\x13\xc6f\xb3C\x89\x0e\xad/\xb9\xefn \\\xaa$\xf7\x83\xa7\x12=\xdb\xd6\xb1oZZ\x04\x95\x0b\x9c\xaf\xb6\xac.V4u\x83\x90\xa0\xcb\x81\xba\xad\xc7\x91\xfc\xba\xc2\x12)\xad!\x98\x94\xd6\x83\xcd\x12\ne\x11\xa3H\x04B\x8c\x02\xb7&gt;\x18\xb2\xd4\xb2\xf0\x81\xa6\xad\x10A\xd0U\x0e/\x0c\x07\xb7^B\xc6\x91\x8b\x7f\xd5\x12\xf8+\x05\xac\x08\x0cCO\xbd\xdf\xd26\x15\xb1\xdeP\x8a\x01\xab$Z*\x94\xb0\xe3\xc1\x84\xc8\xbe\xeb\xd9E\xc1\xf9\xae\xe6\xbc\rl\x9bn\xd4B\x90\x8a&gt;\x8c\xf3y\x99M\xe8\x86@\xd3l\xd9\xee\xd7\x9c\x1c\xcc)\xcd\x9c\xa1\xedXu\x03\xb9N\x99\xe4\x19"\xa4L\x8b\x84\x10\x07H\r!x\xe2\xd0#\x83$H\x85\x0f\x01\xad\x05\xd2\xb7\x08\xa9i\xbb\x8e\x10\x1c]\xd7\xb2\xeb\x1c\x9b\x01\xb6\xbdgW\xb7\x9c\xaeWt^R{\xc1\xa6jy|~F\x88\x81$/P\xc6p\xb0\\\xa2\xd2\t\xde\xf5x\xa5\xb8\xd8U\x18mXoj\xa4J\xc9\xb3\xb1\x0f\xaa\xac&amp;\x86\x80\xf2\x06\x99\xa4\xf4]\x8diw\xf4]E\x91\xcc\xe9pH+\x10\x1e\xda\xb6\xf9c`\xfd\x87,\x84\xc0~\xb7c}q\x81s\x1d:z\x12"\xa9\x0fXk\xe8\x95E\xc6\x91=\x19\xa4aP\x82U\xb7\xe3\xa3\xb3-\xced\xc8$\xe70\x01\xe7z\x8c\xd5\x94\xc5\x14\x11$\x90Q\x94)\x93,!\xb3\t\x85\x8d\x94\xda3a\x8f_?\xc0\x87)\xfbZ\xd1\x17\x13\xe6\xe5\x02-\xe2\x18\nED\x8b\x04\xa2#\x88\x81`4\x83\xc9\x19dB\xb7:\xc7\xfb\x01\xa1&lt;\xb2\xed\xb1A\xa2\x85g^\xa4\xd4\x03(\'\x98\x943\xca&lt;\xa3\xeb[\xf0\x82\xba\xed\xe8\xb75NI\xf6\xfb=\xe7R\x90\x18\xc9\xaa\x1f\xa8\x86\x9a\x90\x18N\x12\x83Q\x8a\xfe\xb2N\x16T\x82\x0e\x81\xc4\xa7\x08\x11qr j\x87\xb4\x11\x11\x02\x93rN\xf0\x81+\x86\xab\xab\x05,!\x04\xda\x1a\x9c\x84\xbe\xe9H\x1d\x18kPV\x81\x84\x89\x15Da\xe8\x83g\xb5k\xb8\xbf\xe9X\x0f\xa0\x8a\x12\x9b\x16(m\xd0\x02\xf2d\x8a\x88\x9e"\xcb)\xf2\xc9\xf8\xbcF\x10\xba\x86j}\x8a\x9a\xa4\xa4\x93\x8c\x81H\xd36\x14FBp\xb8f\x85\xec\xb7\xa4Y\x81I2b\x10\xf4]\x83\t=if\xe9L\x8ev\x92d\xe8\x18\\\x87\x8a\xc0 \xe9\x1b\xcf&gt;\n\xb6]`\xb5\xdeRw\x03Q$\x18\xe3\x10\xfd\x80\xdbW\xf4]K\xdd\x0f\x0c(\xda\x00\xed\xe0\x19\x9ccR\x96\xf8h\x18\x82\xa4\xe3\x94\xaav\xdc:\\\xb0\x98\x14X\xadIMJ\xcc\x1c\xa2\xd3\xb8]\x84\x98 \xbcE\x87\x84j\xb5ej\n\xf2,\xe3\n\xe5\xed\xc0\x15\x03\x96\x94\x92\xf9l\xc6\xe1r\xc9\x1d\x7f9\x19#"F\x1b\x92"g0\x86]\xb0\\\x98\x92z\n\xc9&lt;e\x81\xe6\xa4\x980\xbd\x1c6\xd8\xd6=\x17\x8f\x1f\xb2?\x7fB7\xb4\x9c_T\x88K6\xc4v\xbbe\xbdk\x08x\xf2"\xe3x6\xe3z\x99\xf2\xe22\xe7\xa4\xb4\\\x9bf\xe4t\x04W0\xf4\x87\xb8\xa8!vD\x11\xe8\x8c\xc5\x03q\xd8\xa1\x86\n\x89\xe3\xac\r|\xf0p\xc5\xbd\xb35\x0f\xce\xd7\xacv;\xbc\xeb\x10\x02\xb4\xd0h\xa9\x99Lr\x14\x81\\\x81\xcd\x04=\x8a\x99\xc9\x08h\xb6\xbb=\xbb\xcd\x96\x0f\x1e\x9d\xd2\x84\xc845&lt;w|\xc0\x8b7N\xb8q\xbc\xe4\xe6\xb5\x13\xae_\xbf\xc6\xd4Ztj\x89\xfb\x80\xf0\x03\xbe\x95\xc4d\x823)\xa95\x1c^je]%\xbbR\xc0\x12\x8c^\xcb\x00"\x0ehu)\xdf(K\xea\xf4\x88\x8dJ\xf1\xd9\x12\x99\xcdx\xee\xe0\x90\xc3[\xcf\x91O\xa6dy\xceb6E\x04\xcf\x83{w\xf9\x97\xbf\xfd\x15&gt;X=$\xc3al\x04\xdf\x93\x10\x99d\x91Rg\xd4}K74&lt;~\xdc\xf2\xf8!\xbc\xa5\x14\xb3I\xc6\'\x0e\x17|\xfe\xb9\x19\xaf\\_\xa0K\x89\x0b\x90\xc4\x9e\xde\x18V\xd2P\xd0\xd3\xc7\x9e\xfd\xae\xe6\x9d\x0f\xcfy\xf3\xde\x05\x1f\x9d\xae\x90\xbeG\x13\xd0q O$V\xc4Q\xd9FG\xa6\x89\'\xcf,*\xc90\xc5\x94dv@qpBP\x86}\xddp\xef\xa3\x8f\xb8\xf3\xd1]\xee=&gt;\xe3\xc9\xea\x94!:\xd6&gt;\xf0\xc3\'\xe7\x94\xb7\xef\xf3\xb9\xcf|\x9a\x17\x9e;"\x194\xa9\x9e@W\x13:G\xb3\xdf"\xcb)\xe5r\xc6t&gt;\xbdR\xa5\x06\xb8b\xc0\x8aD\x86\xa1\xa7s\x0e\x82\xc4E\xc5P\x16&lt;\x10\x19:9`\xfe\xfc\'\x99/\x0f\xc6j\xb5\x1f88Z\xf2\xd9\xcf}\x96\x83\xc5\x82YY\xd0\xec\xf7|\'T\xdc?,\xf1\x07\x059\x8eIf\x10~\xc02r\xe3\xbd\x80~\xe8XowT\x8d\xa7\r\x9am\xef\xd9\xd4[~\xef\x83\x1d\x1f&gt;\xce\xf8\x13/\x1d\xf1\x99OJ\x8e\x17\x0bha\x18:\x08k\xc4\xbec\xdb)\xbe\xf7\xd1\x05\xdf\xbf\xbf"(\xcb\xf5\xc5!\xb8\n\x19Z|;\xb2\x15p=\x85\x91\xe4\x89D\xc5\x96BI\xf2\xd4PL\n\xd2i\x89\xcd\r\xc5|FUkf\xea\x88\x1bs\xc9\xa3\xd3\x92\x1f|\x98\xf2`\xd3\xf3d\xbbGiM\xb6\xdbP\xe6\x96\xedn\x8d\x0c\x9e\x89\xb5\x88(G\xdaN\xaf\xc9\xf7=ZH\x94\xbcz\xeb\x81\xaf\x14\xb0\x84\x90$IF6Y\xd0\xa7\x0b\xd6jI\x9b\xe7\x9cnkxp\xc6\'f\xe7\xe8\xd4\xe0cd_m\xb8~\xe3\x04\x11\x1c\xde\r\xd4U\xc3\x93\xc7\xa7|t\xe7=\xaa\xf5)\xa5\x11L\x94\xc2\\\x8a\x87\x98(H\x04d\x89D\xe4S\x96&amp;\xe1b\xdf\xb0\xad[\x0e2AWZV\xcep\xef\xa2\xe7w\xde\xbdO+-?\xf7\xf9\x03\x92\xf2\x1anw\x86xr\x97\xaa\xeb\xf9\xfd{\x15\xef\xad\x047_|\x91\xeb\xf3\x94\x8b\xc7\x1f\xf1\xf8\xe2\x82TJ\x8e\xa7%FE\xaa\xdd\x06\x1f\xa0n=\xce\xf5\xd4]\xa0t\x92&lt;\xc2DH&amp;2\x82k\xf1]C\xd6n\x118\xf62pm6e\xb5_\xf3\xf0\xee}\xa6\x89\xe6\x93/\xdf\xe0d\xff\x18w\xfe\x80\xaa\x1f\xd8\x1a\x8d\xcbr\x92\xc3\x1b\x98\xd9!\xa1\xaay\xedb\xfdq\x1f\xdb\xbf\xd3\xae\x18\xb0\xc4\xa8\x88\xb7&lt;B\x1d\xde\xc4\xd7\x17Tg\x8f\xb0\xbb\x8a]\xd3\xf1\xf6\xee\x8c\x83\xd7&gt;MbR\xa4kx?3L\x8f\x17L\x8a\x19\xae\xda\xf3\xe8\xa3\x0f\xb8\xf3\xd6\xf7\xb8w\xfb}\xfcv\xcd\x90\xa5\xc8\x10\xe8\xda\x96\x18\x06\x12-\x98\x97\x05\xf3i\x81M3r/YojZ\xd7"L\xe0\x85B\x93\xa5\x0b\xde\xd9\xc1\x9d0%YI\xaa\x07\x0fx\xf8\xee[\xb8]\xc3\x10z\xd6\x95\xe0\xf9\x9f\xff"\x9f\xfe\xd2\xa7\xb9\xfd/\xbf\xcd\x9bo\xbf\xc7\xc4:\x9e\xbf~\r#"\x8f.V\x9c\xafw\xc88\xb6\x82\x9c\xeb\xf1\xd2c/\xd6\x14\xe5\x9a\xa2\xbc\xa0,\xa7L\x8b\x8cyf\xb0a\xd4\xa2X]\xeci\xeb\x8e\x85\x15,\xb3\x9c\xf94\xe7\x85\x939\xcfM\x13\x12)\x112\x12\xb4\xc4G\x18D\xc3\xc3\xfd\x19?&lt;o\xf8\xc1\x0f\xbe\xc7/|\xe9Khc\xae\x14\xe1\xef\xca\x01+\x84\xc0\xf9\xe9\x13\x1e\xdf\xfb\x90k\xaa\xe3\x90\x96\xe3\xeb%C\xc8y\xe0`\xb7Z\xa1\x8a)K+\xa9OOy\xff\xad\x1f\x12|d\x7f\xf6\x98\xb3Gwx\xf4\xce\xfbl/\xce0"R\xb7\x0e\x11\xc6\x86t?T\xb8\xa1\'7;\x96e\xca\xe1$\'\xd5\x1ac\xe0b\xd7\x11Z\xc9\x9c\x81k\xb9\xe0\xa1\xb5\x0cf\xc2\xe3^\xf3\xee\x9d\xc7\xbc\xfd\xd6\x1d\xa4\xb7,\xf2\xc8\xd1\xf4\x88O}\xe6%T\xa8x\xfb\xed\x1f\xb1ZU\x1c_\xcb\xd9\xef7&lt;:\xdf\xb1\xe9\x07lV2\x9f\x1d\xe2\xfa\x01\xdfV4}K\xd5Ac%\x8d\xb7\x9c\xad\xf6\xf8\xfb\x0f0\xae\xe6\xb0\xc8(\xd3\x04\xefz2\t\x93\xc3\x05\x01K\x9ag&lt;\xf7\xc2-^:^2M-F\x8f\x83\xbc}\xdd\x10}\xe0\xc0\x1c\x13g\x8e"1\xf4}\xf7l\x1d\xddU\xb1+\x05,`\x14\xf1\x88\x11\xb1:\xe5\xe88\xe70O9(\x0c\xa9U\xa8\xc6\xf0n\xdb\xb2X\x1c\xf0\xfcr\xc6\xbeo\xb8\xfd\xfbo\xf2\xf8tE\xb3\xbb\xa0\xda\x9f\xd3\xed\xeb\xb1\xb0\xa8\x04\xeb0\xa0\x84!z\x011\xc5$\tZ)\x9eT\x03\xeb\xdd\x19\xcb\x89E\xe2i\xfa\x81\xe03\xd62075\xb2k9{\xf4\x90\xd5\xe3\xc7T\xfbsnL\x0c\xc6\t\xd0\x02\x95\x1b\xf2\xee\t\x8f\xdf\xbf\xcb\xbd;\x1f\x11\x1c\xd4\xb5\xa3\xa9\x1a\x9a&gt;PN\x17xm\xb8\xb7\xder\xba\xdb\xd1\x87@\xd7\x0f\x0cRc\xd6\xa7\x1c\xack\x0e\xa73\xe6\xe5\x9c\xf3\xba\xe7\xbc\xba\xe0\xe6\xbc\xe0\xf9e\xc9$I\xb0iF\xd7+\xca\xe5\x92W^z\x91\x83,\x85\xbeA\x85\x16#\x05\xc8\x88\xf3\x81\xc4H\xae\x1d\x1dp\xf3\xe4\x98\xfd\xf9)\x1f~\xe7[tU\xcd\x8dW_\xe5\xf9O~\x96\x8f\xbb\xfepe\x80\x15\xe3\xa5\x96\xa85\\?&gt;\xe2\xc0\n&amp;\xb1G\x07\xc3\xd0\xd7L\x8den,b]aCO\xea\x1d\x9b\xed\x9e\xb3\'+\x1e\x9d\xaei\xbb\x8a\xde5\x0cuC\xdd6t!20\xee\xb4\xe9\x9a\x0e\xbc\xa3H\x14\x07E\xca4M\xa9\x06\xc7\xf6\xc9\x9eT\x0b|\x1f\xd1"\xd0\x08C\x16z\x92l\xca\xc3\'\xf7\xb9\xa5\x06~\xee\xe5#\x16\xc9\t\xbb\xf3\x86w\x1b\xc1\xa60\xa4\x9b\'&lt;zp\x97\xd8\xf7\xf4Np\xd6(\x16\xd3\x02\x9b%\xec\xea\x86\x8bf\xcb\xe3\xa1\xa7\xd2\x9a\xbaw\xc4&gt;0\xb7\x96(5\xabA\xb1yr\xca\xc1\xee\x82y\xa2)\xcb%&amp;+X,gd\xd3\x92\xe0\x15\xab\xfd\x8eD\x0b4\x1e\x11\x1c}\xdf\x11B\x87\xe1rR;:\xc2\xd0\x92\xa4%\x1f\xfd\xe8\x07\xdc\xfeW\xbf\xc7\xf0\xe0\x1e\xb1\x1b8z\xf5E~\xe9\xff\xf4\x7f\xe1\xd6\xa7?\xff\xb1\x9e\xe7\x95\x00V\x0c\x81j\xbf\xe7\xfc\xc9C\x86\xa1\xa7o+&amp;\x85%\xb8\x86\xc1H&lt;\x12\x1f\x06p\x1dq\xe8\xf0]\xcd\xf6|`uvA\xb5\xebi\xda\x81}\xe3\x19b\x84\xdeQN\xa6\xa4J\xf2h\xb5a\xdb\x0e\xf4\x9d\x03\xe7PJ\xd2\x0b\xc9\xd9~\x0f\xdd@\x1a,^K\x8a$Rd\x02\xe1\x1a\xb2\xe4\x90\xd0hbS\xf3\x85O\x1d\xf3\x0b\x9f8!M5w\xef\xaey\xf2\xfe9\xbb\x10\x11\xbdgb,\xc7\xf3\t\xa7uG\xed=\xedfK3\x8c\xfc\xfc\x9f\xfa\xe9\x9f\xe2\xeej\xc5\x8f\xee\xde\x1fg \x83D+\xc5\xcd\xc397\x973\xea\xcd\x9a\xd5\xc59\xeb]\x85\x9e;\xd4\xa2\xa4\x13\x19\x9a\x84~\xe8\xe8\xba\x9e|\x12\xd1\xd1\x13\xba\x1a|\x8f\x8c\x9e\xe0&lt;ZJ\x84\xd4\xa4V\xb1\xcc\x13\xde\xfd\xe1\x9b$O\xeesppLy|\x82\xdf\xae8{\xfb{\xdc\xfa\xd4O\x7f\xac^\xebc\x07V\x8c\x91\xd5\xe9\x13\xfe\xce\xff\xe3\xd7\xf8W\xff\xeboc\xcb\x14=\x99\x83\x92\x84\xa7\xfa\xc5!\xe2\x83D\xc9\x80V\x00\x81\xa6\xafi\xda=}7\xd0T{\xfa\xaeCjO\x82c\x9ejH\x13\x86\xb6f_\x8f\x87\xa2\x15\x1cN2n\x1c\x1d\xb0\xb98\xa7\xeb\x03\xc1C\xd3;\x16\xb9&amp;\xb7\x8eBDd9a\xbb\xe99,\r/\x1d\xcc\xb86\x9d\xa1\xb2\x9cb\xf2"\x8f\x87\x1fq\xf7\x9d\xfb\\\x0c\x82\xe5\xe2\x80\xe7\x8f\xb64\x8fO\x89\xde\x93[\xc3L\x054\x03\xed\x93G\x94\xce\xf3\xc6$\'d\x19\xc2\x07\xd2D\x92M\x147\xaf\x1f2\x7f\xe3e\x86zC\xb7]\x83\x0bdYN\xdd{b3\xea5\xe8$%\</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x01\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x05\x06\x07\t\x03\x04\n\x02\x01\xff\xc4\x00E\x10\x00\x01\x02\x05\x03\x02\x03\x04\x07\x05\x05\x06\x07\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x11\x07\x12!\x081\x13"A\t\x14Qa\x15#2Bq\x81\x91\n3R\xa1\xb1\x16b\xd1\xe1\xf0\x17$%cr\xc1\x184Cs\x92\xa2\xa3\xff\xc4\x00\x1b\x01\x01\x00\x02\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x02\x03\x04\x01\x07\xff\xc4\x005\x11\x00\x01\x03\x02\x04\x04\x03\x07\x04\x01\x05\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x13AQq"a\x81\x06\x14#2B\xa1\xb1\x91\xc1\xd1\xe1\xf0\x1534Rb\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xdf\xe4 \x89\x08"B\x08\x91\x84z\xae\xeb\xf7\xa7\x0e\x8f)[\xb56\xf1C\xd5w\x07\xfb\xad\xbdNR]\x9b_\xcdI\xcf\xd5\xa7\xfb\xcb#&gt;\x99\x87t\x00\xb8\xd8(qR\xfd\xa2j%6o\xe9\x19\x9e\x9cf\x13H\n\xda\xa9\xa6\xeeF\xd6\xf0\xc98&gt;\x18k\x9f\xc3=\xf8\xf9\xc7\xedw\xdb\xbb\xa6\xb7\xdeE\xb57R\xa1$\x02\xb7\x938\xc8PCc\x8c\'\xc3X**9\x03\xcc\x07\x1e\x981\xebd\x8dl0\xbdR\xec?n\x1a)\x95F\xd9\xaeV\xdc\x9a\x93\xf7\xa2\x02\xdc\x97\xcaV\x8cq\x9d\xc3p$\xfan \x0fX\x9a\xfd0\xf5\xf1\xa0\xfdM\xc9\xb5\'m\\\xec\xcbV\x14\x9f=.h\xecqD\x0eJ3\xc2\xc7\xaf\x94\x9c\x0eN#\x0e#\\l\x17\xae\x85\xcdm\xd6q\x04\x1eD#%\xa9!\x04HA\x12\x10D\x84\x11!\x04H\xb2\xf5\xcf^t\xbf\xa7[\nkQ\xb5^\xe6f\x9bO\x97I\xda\x16\xe2C\x93\x0b\xf4m\xb0H\xca\x8f\xe2\x00\xeeH\x1c\xc1\x16\x9f\xfa\xfb\xfd\xa0\xedy\xb9X\x9c\xb1zw\xb7?\xb2\xb4\xf9\xa0P\xc4\xec\xb2\x94\xba\x92\xd0A\xf3)\xc3\x80\xce{\x84\xa1!\x7f\xde=\xa3V\x97E\xf1\xa9Z\xa7]z\xe9\xbf/\n\xe3\xd3\xaf\xcc\x15\xccLNoq9\'\xed)\\\xf3\x9fR2}cK\x9f\x9b\xb2\xeal|=9\xab\xce\xcd\x93\xbb\x1e\xa2\xccJ\xda\x92sO8\xac\xb17\xe0+ps)\xfb@\xfd\x92A\xe4\x1f\xbd\xc0\xf8\x88\xa7\xd6m\x1dp\xb6d&amp;f\x9d\xa5\xcd7+!\x95\x02\xac\xa4,\x9e@&lt;gq9?\x1e\xc0c\x88\xe7t\xf1\xb5\xd9I]\xcc\xa4\x99\xcc\xcc\x02\xb6\xd3u\xdc\x89e\xb7\xaaw,\xc4\xa4\xf3\x89!\xb9v\xe6\xc2=pq\xc8=\xf3\xc0\x04|\x8fs\x7fh\x8fWZ\x9b\xa37L\xbb\x95J\x9c\xcba\x99\x84\x96f\xfd\xe06\xeb.$\xf0A\x189\xed\xdf\x07\xf0\x8d\x9b\xea\x16\x9f\x94\xd9\xcbx\xbe\xcc/k\xcd\x9f\xd4+T\xbd\x17\xd6{\x81\x89{\xa1\xd6\xd2\xd5&amp;\xb0\xa5\x80\xcd[\x03\x1b\x16{!\xff\x00\xd0/\xe0\x0f\x11?c{\x1d\x99\xb7\\2\xc7\xc3}\x92\x11\x9a\xd6\x90\x82$ \x89\x08"B\x08\xba\xf5\t\xe9:L\x93\xd5*\x8c\xca\x19\x97\x97mN&lt;\xeb\x8a\xc2P\x902I&gt;\x80\x08\xf3\xf5\xedR\xf6\x87T\xfa\xa8\xea9\xc4\xd3j\x0e&amp;\xdd\xa6\xbcdmZ^\xfe\x03AXT\xca\x93\xea\xb7\x143\xdb \x04\x8e\xe0F\x99]f\xdb\xaa\xe8\xa6m\xdf\x98\xf2QI6\xad{X\xf5\r\xbd4\xb2JW8\xeb\x84\xd6j\xca\x04\x86\x87\x7f\t\xbc\xf00&gt;\xd2\x8f\xa9\x00p9\x9b\x1d3\xfb/tv\x8bNj\xa1v[\x8eU\xa7\x94\x8c\xaeje\xe5%\'#\x9e\x01\xe7\xf9D\x0e#\\\xe8\xc8\x89\x9e\xaa\xd9\x84\xe1\xcc\x91\xa6i=\x14\xa2\xb0\xba=\xd1\xda\x13)\x97\xa4Xr2\xa8iAIKr\xe3\xcd\xb7\xb0$\xf2y\xf9\xff\x00X\xaa\xdd}$iE\xdd$\xec\x84\xcd\x95\'\xe1\xb9\xf6\x99-\xe0+\x8d\xb9\xfd?\xd7\xc2\x1f\x89#\xf5\xba\x9eccn\x96X\x13X\xbd\x98\x1d=\xd5\x8b\x93\x12\x96C4\xb7\x81\xc3/\xc8\xb7\xb5M\xfc\xc0\xecq\xfc\xff\x00H\x80=jt5|\xf4\xdf\xba\xe9C\x8eW\xed\x97\x1c\x1f\xf1\x06R\xa4\xbd&amp;&gt;i\x1eR\x9f\xcb\xd3\xb4HP\xd7\xc9\x1c\xc1\x8f7\x07N\xca3\x13\xc3b\x96\x13,b\xc4k\xddX\x1a?uW\xed\xf7\x91$\xc4\xfb\x8c\xb7\xb9\x0f\xc8MK\xa8\xe1\x0e\xa7\x94\xa8`\xfa\xe3\xd0\xfd\xde=\x0cz\x1c\xf67\xf5\xff\x00\xff\x00\x8c\xed\x01U\xad~U\x12\xe5\xf5f6\xd4\xb5l\xa9\xcc\xaez\\\xe5-M\xfc\xc9\xda\xa4,\xff\x00\x12B\x8e\n\xf0,\x90\x9b8\x85M\xa9g\xc3\x07\xa2\x98\xf0\x8e\x85\xc4\x90\x82$ \x89\x08"B\x08\xa0\xef\xb7\x83\xad\xc9&gt;\x92\xfa&lt;\x9a\xb5h\xd5U3q\xdfK\\\x84\x9aY?X\xdc\x9aFf\x1c\x1f\x0c\x82\x96\xc1\xff\x00\x9b\x91\xc8\x8f:\xb6\xed\xddT\xb8\xef\xb6\xaa\x93\xc4\xa6f\xa15\xb9\xc5\x14\xe7cc\x84\xa0g\xe2;\xff\x00\xd2\x07\xacsL~\xcb\xb6\x95\x9by\x95;}\x9f\xba&amp;\xc5\x1eq7mJOt\xc5A\xc2\xf2\x94\xa4\xf6\n%_\xe5\x1b\x0f\xb1eed\xa5P\x95yF\xdf\xe1\xef\x14\xa9\xdf\xc5\x9d\xce\xf3_C\x86&gt;\r;Z:,\x95F\x94mr\xe9q\x94}\xac\x0c|Dw\xd9\xa55\xb9\xc4:&gt;\xf6J\x87\xa4tF\xd6\xd9i\xcdb\xad\xab\xd6\x98\xdb\xcd)\x94ms\xd3j\x87\xca0F\xbdi]&amp;\xe6\xb0*V\xf5ZA/I\xce\xb2\xb6\xdcB\x93\x9d\x99\x1d\xc6\x7f\x18\xe4&amp;\xd2\xae\xa6\xbb3r\xadBW\xedU\xd8UJ\x95\xbe\xf9@r\x8f\\\\\x9e\xd5p\xa7\x02\x1cJ\x9a ~\n\xcf\xe0\x93\x12s\xd9\x1d\xd4\\\xff\x00L\x1e\xd2{&amp;J\xa1Y\xf7z\x1d\xd50\x8a,\xe2\xd4p\x95\xb3:\x02[K\x9f$\xbeZV{\x05\'\xd4\x1e-\xf4\xd2f\r=U\x16\xb20\xdc\xcd\xe8\xbd\x19B$\x94*B\x08\x90\x82$ \x89\x08"\xf3\xf5\xfbIZ\xb3U\xbd\xba\xbc\x9e\xb5\xa6\x16\xafr\xb6i\xd2\xb2\x12\xad-@\x84\x02\x82\xeb\x8a\x00v\xdcT?/\xcb\x1a\xe8\xd0ySwk\x0c\x8d,\xa9KO\x8c\x0b\xdbO\tH?\xeb\xe6NLpT;\xe1\xb8\xf7R\xd4M\xf8\xb1\x8e\xb6[f\xe9\xacIS(r2Jkk\xa9\x96I\xed\xc9\x1d\xb1\xf2\xc4J\xad?\x95z\xa7.\x94\xaa]_=\xca\x19\x8aa\xf9\x95\xfd\x87\xc3u\x94\xa8\xa8\x12L\xb6\xca\x92\xa0\x94\x8e#\x91\xfa\x92\x9aqIm\xad\xc1C\x8f/\xacuf\xca\xc0\xb8\xbeg*=e\xf5%\xe5x\xcc\xabiOt\xf6\x11f\xdf\x12\xcc\xcdS\\Z[J\x9b(;\xb0\x9e\xfcw\x8e2n\xe5\xb9\xbe\x15\xa6\x1e\xa9\xa7\xa86\xe7P\xf7r\xab,\xa3\xc2n\xec\x96h6U\xf6\x92\x1bQ?\xa8H\xcf\xaf1e_Z\x95/#\xaa\x94\xeb\xae\x86\xde\xcf\xa2\xdea\xd9`\x9e\x14\x92\xda\xf2\x8c~\x87\xfa\xfc"\xd9F&gt;\x13\x0f\x92\xa9\xd7\x1f\x8e\xf1\xe6\xbd^Xw]&gt;\xfc\xb2(\xd7\xc5(\xff\x00\xba\xd6iR\xf3\xd2\xff\x00\xfbn\xb6\x97\x13\xfc\x94"\xaf\x12\xe3e]HG\xa8\x90\x82$ \x89\x08"\xf3\x8b\xfbA4\x19\xfaO\\W\xc4\x84\xe2\x92\x95L\xad5&amp;R\xa5rZ2\xdeQ\xfa\xb5\xf9g\x88\x87=\x16R\x9d\x9a\xbf\x9f\xaa\xa1\xa4\xab\xc1N\xdd\xdby\xc0\xc19\xfd\x7f(\x8d\xa9\xff\x00a\xe3\xcf\xf7St?\xf2c&gt;C\xf0\xb6;\xa6\x9a\xd1\xa4\x1an\xa6j\x17\xbd\xeb*\xca\x99@G\x99\xc2\x12\xdey\xef\x8c\x1f\xc63\xbe\x81{@:\\\xbc\xab\xbf\xd9\xab_U$U4\xa76%\xb9\xac\xb6\x95\xab\xe0\x85,\x00\xaf\xca+-\xa7\x90\xb0\xb8\r\x95\xbf\xde\xa3k\x83\t\xddJ\t+\xde\x91U\xa5\xb2\xfc\xa8\n\n\xc7\xd9Vs\xc7x\xa5\xdf:\xd5\xa6\xbaaBr\xbb}\xddRt\xb96\xd2J\x9e\x9cx#\x9f\x96O\'\xe5\xde\r{\\\xe0\x17\x8e\x19\x05\xd6(\x93\xf6\x8f\xf4\x8dx\xcc\xfd\x19mjT\xbc\xe3\xc5[S\xe1\xa4\x84\x95v\xfbG\x03\xf9\xc7~\xaf\xa9\xd6\xac\xfd5U\x0br\xae\xcb\xed\xb8\x8c\xb9/\xe3\'pOn\x06y\x8duP\xe4;X\xaf!\x93\x884\xd9i\'\xdai9R\xa5\xf5CtJ\xb8\xa5!\xb9\x8a\x94\xb4\xe2N\xdcg\xea\x823\xf9\x9c\xc61\xa9UC\xaf\xcb\xce4\xf6\xf2\xa4\x00\\\x1cy\x8a\xc9O\xea\t\xf5\xe3\xf4\x8b=\x07\x8a\x9a3\xe5\xfc*\xa6 r\xd5&lt;\x1e\xab\xd6g@\x15\x06j}\x0e\xe9\x14\xd4\xab\xeau\xb1\xa74v\xd2\xea\xb3\x95\x84J6\x8d\xdc\xf6\xce\xdc\xe3\xd3\xb4f\x08\x95PI\x08"B\x08\x90\x82$ \x8bC\x1f\xb4\xb5\xa4\x17-\xad\xd6L\xa6\xa9;KS\xf4\xbb\x9e\xd7\x96D\xac\xc6\xdf/\x8c\xd2&amp;\x10\xb6\xbed\x04\x02~\x01i\xcfq\x10\xfb\xa2=\x1f2\xdaSv_3\x85M\xaab\xa4\x99\nz{\xabnR\xb5+\xe3\xf6J~\x11\x1bU\xe0\x8d\xe4\xf7S4&gt;9c\x03\xb7\xe1|j5"\xd5E\xcb1K\xbc.I\xe9\xa9YfP\xb4\xd3h\xf2~\xf0\xfe\xd3\xdd^`R\x902\x07%#\'\x93\xe9\x15;;\xa5\xeb\x12\xfd\x93\x17\xae\x8eW\xabn%\x01\x9d\xaa\xad\xc9\xa5\xa4\xa1\xc5\xb7\xbd-\xf8\x88*B\\\x1c\xa4\xb6V\x15\xb8\x10\x07\x11\n\xd7M\xc1\xcf\xa0\x1d9\xf7V\xa6\xb6\x8d\xd2\xf0\x889\xfa\xf2\xed\xfes[\x18\xf6V\xea5\xd5\xa9:h\xed\xbby\xcc8g\xed\xf9\xb7$\xe6P\xf1%G\t\x1bU\xcf&lt;p#\x1a\xfb@t\xdeoP5\x0eb\x97R\\\xf4\xf5&gt;\x96\xc6\xe7\x94\x82|6\xd6\xad\xd8O\x1d\xb8\x07\xe2O\x03\xd6#\x1c]\x1b\xae\xd2\xbb\xe0\x8d\xb2\xc9\x91\xc1E_\xf6y\xd3\xb6\x96^)\xb1\xee\x8d+\xbc\xd3V\x9b\xf7s.dT\xe9*.\x80P\xa4\x810\x83\x80\x1426\x127\xa7\x83\x93\x89\x1d\xd35"m\xc7&amp;\xa4\xe87\xbb\xd5jk\x13\x05\x96\xdb\xa8K\xf83r\x8b\x1fqC\x08R\xb1\xc0\xe5 \xfe=\xceu-\x98F$q\x06\xff\x00o"\xb2\xa7\x92\x8eg:(\xdaF^|\x8f\x9a\xc5~\xd6~\x8f*\xf7E\xa5+\xaf6\xe4\x92\\\x9e\xa2\xcb\x86\xab2\xed\xa7\x97\xa5\xca\x94|A\xff\x00N\x7fB\xaex\x11\x0cza\xd3\x89\xbd_\xd4\t;\x17\xdc\x1bK*}\nyN+\xcc\x94\'\x95\x14\xf23\x81\x9c\xfa\x88\x9d\xc2f\xcdI\xaf\xd2\xaax\xcc\x04T\x82&gt;\xa1\xfd/]Zej\xdb\xf6\x1e\x9dPl{Q\r&amp;\x99F\xa3J\xc8\xd3\xd2\xc2@@e\xa6\x92\x84`\x0e\xc3h\x11^\x89\xf5WHA\x12\x10D\x84\x11!\x04X\x1b\xda\'\xd2V\x9au\x83\xd3\x1d\xc3a\xdf\xf4%?3!O~z\x83?.\xa0\x89\x89\x19\xc6\xdb*B\xdbQ\x1d\x8e6\xa8vRTG\xc0\x8d4\xf4\xad\xa1(\x95\xb2g\x8dV\xaa\x87\x9b\x93\xbb\x9d\x91\x98\x95h\xfdR\x16\x1bk\xcd\xdf\xbf\xa7\xe5\x11x\xa0\xbd1\xec\xa6\xb0g\xe5\x9d\xbd\xff\x00*\xb97\xd2$\xf4\x9d\xe359Ey\x96|m\xc8_\xbco\xda\xf2\x0f\xc0\xa7\x90H\x1f1\x19&gt;\x81\xd3\xdd\xddB\xb6}\xe6\xa59\'+\'.\x85-I\xf74\xb8\x94\x809\x00/\xbf\xc3\x18\x03\xe3\x15a#\xdc\xdb_@\xafLtc\x96\xa7oUzt\x17K\x93\xa4\\\xb7w\xb9\x15;\xe3\xd4\x94\xea\x9dQ\xf3/ \r\xdf\xcb1~]\xfaS9~\xceVM\x0ey,\xcc\xcd;\x94\x87\x10\x95y\x93\x94\x85\x0c\x83\x85\x10H\xcf\xa8\xe3\xd64\x9e]\xd6A\xb95X\xe5\xae\x93o\xbamM\x99{\x96\x8d#7\xb4\x80\xcdAL\xfdj\x12\x07\x01+(*F=6,v\xf8\x1cFQ\xb14J\xdf\xb4\xe9\xc52rm%j{\xc5x%\xbc\xeeW\xc4\x1cg\xfds\x1e\xcd\x9d\xb6k\xb6\x1b,x\xb1j\xe8\xc6\xfb\xacw\xd5\xa4\xd5-\x8d&gt;\xafS\xd7\xb0\xb6\xe5\x1ea%+\xf5\xfa\xb5\x7f\x90\x88\xf3\xec\x84\xe8r\xd5\xacjM\'Tn\x8bVFzZbk\xdd\xe4\xb7\xa4/\xde\xb7L\x00[X\xf8l\xe0\xe7\x93\x93\xe9\x1d\xb4R9\x90Xs (\xca\xb8Z\xf9\x03\x8f\xd2\xd2V\xf7\xed+B\xd8\xb1\xa8\x8d\xdb\xf6\x8d\x12^\x9f$\xd9%\xb9Yf\xf6\xa1$\xf7\xc0\x8a\xa4]\x06\xcb\xe7\xc9\x08\xf5\x12\x10D\x84\x11!\x04V\xde\xb03qL\xe95\xd1-i7\xbe\xaa\xe5\xbb:\x9ab?\x8a`\xb0\xbf\x0c\x7f\xf2\xc4h?\xa3+\x82\xb5k[\xb7\x85\x95v\x0578\xf5k\xdf\xe5\xc3\xa9 \x9d\xa7\xc3R\xc7\xf7s\xb4\x0f\\\x85q\xc4F\xd7\xea2\x9d\x88?\xb2\x9a\xc2Z\xdc\x85\xdc\xc3\x87\xe8\xa5\xe6\x90T\x1a\xa9S\x12\xfdUl\xb8\xe2prR&lt;\xbf\x9cT\xb5\xbe\xe6\x91\xa4\xd8\xd3\x8d+\xcc\x1cg\tKj\x03r\x95\xc0\x1f\xa9\x8an\xa3E\x7f\x8d\x8d\xb0!S\xba\x0e\xb6\xa7\x98\x95\xac\xd6*!;\xd4\xa5\xa1\x97\x11\xd8\xed\xe31\x91\xe9\xf5\xb4P\xaaO;&gt;\xef\x84\xcaf\x88[\x81&lt;\x9f\xf2\xe62{l\xdd\x17\xa3\xc4-\xd9d*%\xd3C\xa8J%\xda}Q/2\xbeS\xe6\xe3\xf0\x11A\xbf*l\xd3%\x1c\x9e\x96}(\xfe \x9f\x87\xc6&lt;\x95\xcd\x921c\xb2\xd2\xd8r\xbc\xdc(\x9d\xd4+s:\xbfr\xcb\xe9\x9d&gt;{\xc1n\xa5:\xd4\xbb\xce\x14\xf0\xa6wx\x8e\x8c\x9e\xd9BH\xcf\xf7\xa2V\xf4c\xa6v6\x9a_\x16\xa5\x85eS&lt;\x16S0\x87\x12\x95$\xfd\xa6\xdaZ\xca\x86y\xc6\xcc\x0c\xf0&gt;\xcf\xc6:\xe8\xc5\xdd\x1bOP~\xe1pU\xf8a\x94\xff\x00\xe4\xfe.\xa7\x84"\xee6_:HG\xa8\x90\x82$ \x89\x03\xdb\x98"\xf9\xe0\x8d\xa0g\xe3\x1aG\xf6\x87h5s\xa5\x9e\xaa\xea&amp;\x8fmO\xca\xdbs\xc2a\xea;\xde\xee\xaf\x01\xc6\\\xfa\xf2\x94/\x84\xa8\xa0\x92\x9d\xb9\xc8\xd9\xda8\xab\x19\x99\xad&gt;\x7f\x95#\x86J\x1a\xe74\x9d\xc7\xdc\x15\xd1\xd0\x9dU\x99\x9e\x93)\xa7\xbf\xb9\x95\xe0\x00\x95v\x8b\x9f\xaa\x8a\x951\x9d \x99D\xf5\xcc\xa9z\x84\xc3[\xa5|\x17&gt;\xb1\x05&gt;l\x80~\x04E\x1eF\xb9\xd5\x99\x07U\xf4h\xa6k)\x1a\xee\xa1G\xce\x8f\xbd\xa3\xda\x9b\xa5\xf4\xa9\xed:\xb8,\xda\xc4\xdc\xe4\xa4\xf3\x8eI\xd4e\xe4T\x130\xc6\x0e\xfc\xfc\x08\xf9\xf1\x8f\x80\x89A\xd3\xee\xb9\xde\x9a\x8fp\xfd3~\xd6\xa4QIu\x1e*d[\x92;\xc9Y;\x03\x8e(\xf7\x1c\x1c\x04\x8c\xe4\x1e\xd1\xdd=&gt;Rln\x17&lt;\x15\x8d{\x07\x86\xceY\x1ab\x8b5C\xaa\xbbY\xb0n\x04LS^\xcb\x8eK\xa5\xcf\xdc\xab\xe29\xc6\xdf\xe9\x9f\x87o\x9b\xee\xe6\xa9\xc9[NM\xd7\x1e\xf0\xd1\xb7*\xfa\xcd\xbf\xce"\x06x\xdf\x91w\xbaV\xbe\x1c\xdf\xaa\xc3\xb6m\xcff\xd0uF\x9f}\xea\x9d\xc2\xcd6\x94\xc4\xc6\xe9\x89\xa9\xcc!\xb9t\xac\xf8`\xac\x9cq\xb8\xa59&lt;dF\xc7\xba2\xd3iy\xf9u\xeb$\xf1\x0e\xa5\xfd\xcc\xd0\xdcB|\xae\xb3\xb4$\xcc\x05}\xe0FR\x9fLn&lt;\xee\x11b\xc2\xe9\xdc\xfa\x96\x924\x03\xf0\xaa\xb8\xb5Cc\xa2p\x07Wi\xfa\xee\xa4\'hE\xb1R\xd2\x10D\x84\x11!\x04HA\x17\xc8&gt;\\\xfa\xe20\x97\xb4SNe5/\xa2\xdd@\xa0\xbfJD\xe3\xb2\xd4\x17\'\xe5R\xa4eHr\\\x87\xb7\'\xe0v\xa1C\x8fBGc\x88\xc5\xc33HYFr\xbc\x1f5\xa6\x0e\x98\xaa,T/G\xed\x17f\xfc?xP\\\xa9J\xfb\x02T\x12\x07\xc3\xb0\xf9\xf3\x15M|\x93\xd4\x8b\x0e\xbbE\xad\xd3\xb4\xf2\xa1p!\xc7\xbc\x19\x89\x92\xe0S\x12\xabZ\x80\xf1\x1eF\xed\xfb\x00=\xc08\x03\x98\xa3\xc8\xdc\xb5\xe5\xbb]}\x1e\x96\xf2\xd2\xb3\x9d\xba,\xe5\xa3==u\x01{\xda\x12\xb7\x1c\xbe\x9ci\xcc\xe3\x13\x89e\xe6\xdd\x97\x9cPp\x87;\x92\xa4#\x903\xb8\x82TH\xce&gt;\x11\x91n\xad\x0b\xd5\xed&amp;\xa79T\x9e\xb2t\xff\x00\xdd\xc9[{\x9b\xaa-\x97\x1e\xc3[\xc9N\xe4g\xb20\x07*\xe0z\x08\xdd\xee\xf3;q\xb7\x9a\xf3\xfdK\x0f.\xc8\x1a\xeb\x9d4\x00\xf4VF\x8aU\xab\xda\x81?/r\xd5\xb4\xb2\xb1j6\xc4\xc2\x9b\x94fnq\nm\xf0{\x90\xda\t\xc2\t\xfe \x92b\xaf\xd4=j\x96\xea\x1a\xb4\xa6\xd0\x14\xdbm\xa8\xcc)*\xfd\xd19\x08\xcf\xc7?&gt;3\x88\x8bp\xcdSn\x8b\xad\xed0\xc6\xe0\xa2\x07Y\xf7\xc5&gt;j\xcd\xab\xdam\xcb\xadr\x8d{\xb3.\xbc\xca\xbb\xa7\xdeXRy\xf8`\xfa\xff\x00#\x1bw\xf6*\xea4\x8e\xa4{3\xb4\xb6zN\xa4\x99\x95\xd2\xe8\xcb\xa6L8\x9c\xf0XyiH9\xfb\xde\x1f\x87\x9f\x991q\xc2[\x96/\xf3\xc9Q\xf1\xaf\x14\x80\xf4\nU\xc2%\xd4"B\x08\x90\x82$ \x89\x08"GZ\xa7M\x92\xac\xd3f)\x15ID=-2\xca\x99\x98e\xc4\xe5.!C\nI\x1e\xa0\x82D\x11h\x17\xad\xbd\x05\xbf\xba\x04\xea\xa6b\xcf\xa9\x95\xb7Eri\xca\x95\x97Ro\xca\xdb\xf4\xf2\xe1\xc2\x00\x1f}\xb2\xaf\r@\xf3\x94\x820\x08\x8c\xb4/i\xcb\xd6\x8c\xc4\xc4\xba\xc2\\\x98\x93J\xdbQ\xfb*\xc8\x19\x1f\x81\x8a^/\x1b\xa9\xeb\x04\x81}\x0b\xd9\xf9\x9b5=\xb9\x85\xc5lj}\x1e\xc0i\xc6\xee*ze\xdcX\xde\xa5J\xbd\xe1&lt;\xbc\x0c\x02FF\xe0\x07\xaf\xca2\xcd\x9b~HjJ\x12\xe4\xb0S\xcd\xee\xfd\xeb\xeaS\xa7\xbe;\xab9?\x87\x1cF\x97U;\x85\x9a\xdf}\x14\xf3\xa4\xa5\xe2fh\xf1\xf6\x17\xfdU\xd7R\xab\xb5F\xa5\xbdT\x9c^\xd9y\x16\xd4\xe2\x95\xdbq\x03\x93\xf9\x0fO\x9cD~\xa259\xaa\xcb/V\x84\xcb\x8c\xbfRPJ[[\xbb\n\x14\xda\xc0g\x1c\x8c\x90W\xc79$q\xf2\xe1\xa1i\x92\xa4\x13\xd5pW\xbb$\x07\xb2\xaft\x97\xd21\xeaRVV\xcf\xd5\xfa\xdc\xd5\r\x9b\xaeiS2o\x04\x8f\x12QR\xe9\\\xd3\x01~ \xfb%\xd4 \x91\xc7\x90\x90\x08\xceF\xd1\xbd\x9c\xdd7\xcat\xc7\xd3\xfb\xf6\x9c\x85,\xc8\xcb\xd6\xae)\xaa\xd4\xbc\x8a\x90P\xa6P\xf2[H\xca\x0f\xee\xca\xbc=\xfb8\xda\x16\x01\t \x81s\xc3\x1c\xd9#s\x87\xfd\x88\xfb\x05F\xc5\xc3\x98\xf64\xf4\x07\xee\xb3\xf4"UC\xa4 \x89\x08"B\x08\x90\x82$ \x8b[\xbf\xb4\x9d\xa7\xa9\xb8zc\xb3\xef\xbfv\x05T{\x91\xe9`\xf6\xde[/\xb1\xb8\x1f\xff\x00\x03\xf8F\xb9\xfa\x19\xd7\x94\xae]\xebF\xf3K\x85\xea9\xcb\xce-\xe2\xe6\xd6F\x00P\x1f\xc2G&lt;`\x1c\xe7\xf1\x83\xc6!\xf7\x88\x1c\xd1\xb8\xb1V,\x0e\x7fw\x99\x87\x91\xb8*W}\x0b\xa5z\xa50\xa6\x9f\x90\x97\x98K-\x856\xa5\xa5`\x9c\xa7\x80pRH!]\xb3\xdb\x9cv1\x90\xb4\xfeV\xc7\xd3\xfa\x1bs\x16\xb5\x05\x0c\xca\'z\x14\x94\xa8\xe58V8\xc9\xe7\x9f\x9cV8r{\xbeB\xae\xc5\xf0\xe6\xbd\xd6/\xeb\xc7\xa8i\x1d0\xd2\xdf\x16\x8e\xa4\xa95gP\xd0y*#jwy\x860{\x0c~\xaa\xe0q\x9c)\xd1\xb6\x99\\\xfd\\\xeaT\xbe\xaa\xde\xb4\x157l\xd0\xd3\xe2J\xcb\xb8\x92R\xf2\xce\xcd\x819\xe3f\x12\x01\xc7~O\xa8\x8e\xa8)\x9dKLe;\xf2\xf5\xb2\x87\xa8\xabmMO\x08l-\x7fE\'\xf5\xc1\xfb\xc6\xd4\xa3\xceOi\xa5k\xe8\xaa\xdc\xa4\xa3\xce\xd1g\x99e\'\xdd\xa6\x12\xda\xfc5\x94\xa8\x14\xf79\xc1\x04`\x01\xf2\x8bw\xd8\xd7\xed\xb8\xeaKT\xb5\xe6W\xa7N\xb9.Yz\x87\xd3\xf3K\xa6\xd1\xaa\xcf\xd3\x18\x95\x98\x91\xa9%e-\xb0\xe1e\x08J\xd2\xe1\x05\xbeRT\x16Q\xce\t\x8b\x1f\xb2\xcdmE&lt;\xd1[\xc4&lt;C\xf7P&gt;\xd31\xcc\x92)y\x11b\xb7\x11\x08\x96U\xd4\x84\x11!\x04HA\x12\x10D\x84\x11C\xbfnP\xb2\xe6z\x07\xabS.z\xc4\xb4\xbc\xf4\xd5vE6\xf3\x0f\xab\n\x9b\x9b\nQSH\xf8\xab\xdd\xc4\xc2\xbf\x04\x18\xd0\xde\x9f\\\x13\x96-jbmi\x99S\x8dJ\xa9+e\n\xdb\xef,n\x04\xb0\xa3\xe9\xe6\x03\xcc\x06\xe1\xe8DG\xd4\xbb\x87;o\xb1\nZ\x8d\xae}1\xcb\xb87\x1feR\x9b\xf6\x80Wt\xeebb\x9c\xdc\x9c\xe3\xf2o\xeem\x97\xd2\xd9HCx8\xdcrNFF\tV@\xda=8\xb9\xad\x0fi]\xc9w\xcc\xa6\x89N\xa1\xce\xaa_\xc6\xca~\xde\x0f\xc9\x018\xe5J\xf9\xf2V\xac\xf78\xe1~\x1e\xdc\xc5\xd9\xb4Rq\xe2\x92p\xc32\x92me\x94(z1\xaa]i\xd7\xa9\xb4\xbb\xbaI\x14{ZNx8\xc6\xe9E6\xad\xa1\x05)&lt;\xf9\xb0\xa0\xa06\xa8\xe7\x9c\xe0v\x89\xf9\xa7\xf6\x1d\xb9\xa3\x96|\xb5\x9bdRee\xa5\xe5\xdb\xd8\xf3\x8d\'\nR\xb0&lt;\xd99\xcf\x9b$\xa8\xf7\x88\x8a\xfa\xa6L\xe1\x1c\x7f+T\x8d\x05,\x917&lt;\x9f1\xd4\xac;\xd6v\xaf[zA\xa5\xd5k\xda\xb55\xf5\x89d\xb5%.\xa5y\x9f\x98X\xc2[O\xcb\x9f\xc9&lt;\xfa\x18\xd5U6\xee\xafI\\_\xda\xe6\xaaO7QT\xf7\xbe{\xd3nmq\x0fo\xdf\xbd$r\x08W \xfab.\x1e\xc3\xd2Z9\'#r\x1a=5?\x90\xa0}\xad\xa9\x0e1\xc29\x0b\x9f]\x97\xa1?eo\xb5/N\xfa\xd5\xd1\x89J&gt;\xa3]4\xdaF\xa1\xd0R\xc4\x95vFrq\xb6~\x94Y\x04"j\\(\x8d\xfe&amp;\xd3\xb9\t\xe5\x0b\xc8\xc6\xd5 \x99\x91\xf8\xc7eT\x0e\xa7\x9d\xcc&gt;\x9d\x95~\x198\x91\x82\x90\x8d\x0bbB\x08\x90\x82$ \x89\x03\xc8\xc4\x11i7\xf6\xa9\xfa\x84\xac\xdb:\xd7\xa2\x9a}K\xab\x9f\xa3\xed\xb4\xbf_\xa9\xcbK\xbc\x0e][\xed\xb7\x87\x12\x0eA\x0c\xb6\xbcg\xd1\xe3\x8e\xf1\x08\xea\xf6zk\xb3?\xda\x0b}\xa4&lt;\x95$:\xce\xd5d8\x83\xc9\x00\xfc\xc7\xf4\x88\xfck\xe0\xb6\x17\xf9\x1f\xcd\xd4\xce\x07\xf1\x84\x8c\xf3T\x9b\'D\xa9w\xc5E\xc0\xa6K\xc1\xee\x1eJ[#\x03\xf2\x1d\xc1\x891\xd3\x97EV\x95\xb9Sf}\xaaKIK\xc8\xc8s\xc3\xce\x0e{n#\x82LV\xe7\x9aG]\xb7\xd1Y)\xe0\x8d\xa4&gt;\xda\xa9\x93g\xc8I\xdb\x14\xd4\xd3\xa9r\x9eT\xa5I\xf2\xa0rr=~?\xeb\x88\xfc\xd4\xddK\xb5\xb4r\xc8\x9c\xbco\xea\xec\xbd&gt;F\x9f-\xbebi\xe2|\xa3\x9f(\xe4\xe5J&lt;%#$\x9c\x0ex\x11\x1f\x14N\x96@\xc6\x0b\x92l\x17s\xe4lq\x978\xe8\x05\xca\xd4\xcfW\xbdY\\\x9dM\xea\x13\x97\x04\xe3oIPdVZ\xb7\xe8\xee9\x95!\xbe\xde+\x9f\x17\x15\xdc\xf7\xda\x0e\x01&lt;\x93\x8a\xa5^u\xc5x\xcb\xfb]\xc0\x8f\xb7aTm\xa0\xa1d\x03\x90\xd7\xcc\xee~\xeb\xe5X\x85S\xab*])\xe6t\xed\xcb\xec\xbb5Z\xe5VBO\xc5\xa3N\xf83-\xa9.%\xe4\xe7\xc8A\xf2\x9e&gt;\'\x88\xdco\xb3\x0b\xdb\xc1H\xa2i}\xb5\xa2\xfda\xcb\xcf8\xe5&gt;Y2l\xdfr\xf9yE\t8G\xbd\xb5\x92\xb3\xb58\x1e"\n\x94@\x19I9Q\xd9]F\xea\xd8\xf2\xb7q\xa8\xfe=W4R\x88M\xcf5\xb4\xdb\x0fP\xac}P\xb6e\xef-8\xbb\xe9\xd5\xcaL\xdawK\xd4)\x93hy\xa5\x8f\x86\xe4\x93\xc8\xf5\x07\x90x8\x8a\xdf\xc8\x08\xa8\xb9\xaek\x8bH\xb1\nH\x10\xe1p\xbfa\x05\xeaB\x08\x90\x82(\xc5\xd5G\xb5\xdb\xa1^\x90\xae\x89\xad&gt;\xd4\xbdX3\xd74\x9bjT\xcd\xbdm\xc8\xaeva\x95\x01\x90\xdb\x8aN\x1aig\xf8V\xb4\x91\x9c\x90\x071\xa9\xbfi\x7f\xb7\xdf\xa8.\xa7-\x99{\x07\xa7d\xd4\xf4\xda\xdd\x98[\xaa\x9a]6\xa8~\x91\xa85\xbbk~+\xe8\tS);I-\xb6G\xda\xc2\x94\xb1\x88\x99\xa1\xc3\x9cH\x96N\xe0\x7f+\x8eY\xeer7\xd4\xadcU\xef\xeb\xce\xfe\xbd*\x0c\xdfW\\\xfdjje\xb5L95S\x99[\xcb[\x83\x03\x1b\x96I9NrI\xee\x04H\xae\x875B\x9f5W\x93\xd3[\x92h)\xa5\x1d\x94\xf7\x1cY\xf2\xf1\xfb\xb3\xf1\xe3\xb7\xf8\xc7\x07\xb4\x14n\xab\xa0s\x9b\xbb5\xf4\xe6\xa5\xb0\x1a\xa6\xd3W\xb5\xa7gi\xfc)]\xa5\xdagm\xdb\xb7\xfc\xdf\x8d\xb9\x90\xa9\xaf\x11(\xdb\x94\xad\xb3\xc8P\x11),j]\xb5Im\x97dT\xa7\x94\xe1\'\xcc\xa1\xfe\xb1\x1f3s\x88_DkCE\x82\xef\xdf\xfa\x87dim\x9bR\xd4\x9d@\xad\xb7N\xa4S\x18\xf1\x1e\x98u]\x8eF\x10\x94\xe3*Y8\x01 \x12N\x00\x19\xc4j\xa3\xac&gt;\xb2/.\xaa\xaf/{\x98i\xcau\xb3$\xf1\x14:\x19s\x9f_\xaf{\x1c)\xd23\xfd\xd4\x03\x81\x9c\x95*\xdd\xec~\x1d\xef\x15\x06\xa9\xe3F\xed\xdf\xfa\x1f\x95X\xf6\x9a\xbb\x83\x10\xa7a\xd5\xdb\xf6\xfe\xd6\x1bbUO;\xe2\xba\x95(\xab\x90\x0f\xfd\xa2\xa0\x95\xb3(\xd9[\xee\xf7\xfb\xb8\xe4\xfe\x1f\xd2&gt;\x9c\xd5B:\xec\xa9\xf3O:\xf3B\\}\xa9\x89\xc4%^n\xd89\xc7\xe5\x88\xc9\x12\x0f\tvX\x93\x97G\x97f\x16\xa1\xf7x\x8d\xb1|\xcb\\\x9f*\xcc],\xf5\x9f\xaf\xdd"\xde\xc9\xbb\xf4N\xfe\x98\xa7\xa9KO\xd2\x14\xd7\x15\xe2I\xce\xa4}\xd7\x99\'j\xc7\xcf\x85\'&gt;R\x0f1\xb8.\x86}\xb6Z\x01\xd4\xd7\xb9X\x9a\xc2\xa9{\x16\xf1\x98\xda\x86\xd34\xf7\xfc6}\xc3\xe8\xd3\xca\xfd\xd2\x89\xff\x00\xd3s\x1d\xc0\x0bY1\x17\x8ba\xfcf\xf1\xa3\x1e!\xbf\x98\xfeB\xddK?\r\xd9\x1d\xb1Sx\x10\xa1\x90a\x15E(\xbeA)\xf4\x8c\x0f\xad\x1e\xd3N\x86\xfaz\xd4g\xb4\x97Wu\xfa\x9fK\xaf\xca\xa1+\x9b\x90n\x9f73\xee\xd9\x00\x84\xb8\xb6\x1aZP\xac\x10v\xa8\x83\x8fH\xdb\x05&lt;\xb5\x0f\xcb\x18\xb9Z\xe4\x91\x91\x8b\xb8\xac\x11\xd4\x17\xed\x05\xf4G\xa4\x12\xbe\r\x80\xd5z\xf8\x9e[EL7N\x912r\xf9\xc7\x1b\xd73\xb5i\x07\xe2\x1bW\x1c\xfe:\xce\xebc\xdb7\xd5\xdfTRSV\xac\xcd\xecmj\x14\xd3\x84\xbbA\xb6\\T\xbbIo\xee\xb4\xe3\xa0\xf8\x8f\x1c`\xa8\xa9[I\xec\x84\x81\x16\x1a\x0c\'\x82\xee$\xda\x9eC\xa7\x7f5\xc1-W\x10ef\xca\x14\\u\xd9\x82\xd3\x93*\x98q\xc9\x89\xac\x82\xe2\xdc$\xab\'\xd7\xf11\xd4\xa9!3\x87h?T\xdba\xb4\x1e\xdb\xb01\x12\xce\xf9\xac\xb45X\x95\x1ajd+?L\xa0\x0cnRs\xf1\xe3\x98HTfhUV\xea\xd4I\x87\x1bR\x16\x14\x14\x85`\x83\x9e\xfcv?8\x8fs\x06b\xd5\xd4\xc7[P\xa7/J\x1dd\xdaw\xec\xbc\x85\x95\xacs\xe8\x93\xac3\xb5\xb9\x1a\xf3\xb8KSI\xf4C\xca\xe3\xc3X\xfe3\xe5P\xef\x83\xf6\xa46\xa4\xf55\xa5\xfd:\xd2\x93;q]\x0c\xcdL%\xcc\xcb\xd2i\xb3\tze\xec\x0e@O\xdd\x1f\xdeQ\t\xf9\xc7\xcc\xb1,\x02\xa9\x98\xa7\x06\x16\xdd\xaf\xd5\xa7\x90\x1c\xef\xdb\xf0\xbe\x87C\x8dS\xbf\x0e\xe2\xca\xedZ,G2y[\xbf\xf2\xa0\xafT\xbd`jgS\xb7\x0bj\xaf\xbe\xb9:&lt;\x8b\xa5t\x9bv]\xc2\xa6YQ\xe3\xc5p\xf1\xe2\xbaG\x1b\x88\x00\x02B@\x04\xe7\x18\xcb\xd3g\xa6\x9d\xf1gS\xb7\x9c\xeeW\xf4\x8f\xa4\xe1\x94,\xa0\xa4l\x11\xec7=O2\xa8U\xd5o\xab\xa8t\xaf\xe7\xcb\xa0\xe4\x17iU\x06)\xc0\xcb4B\xd4\xa1\x8e#\xe6\x86]\xaaV\x92\x1dI\xda\xd7\x9b\x18\xef\xc7\xf4\xf8~\xb1%\xf5\x00\xb8\xb5\xdd~\xcc\xcb\x84\xdd2\xac%&gt;_\x11K\xe0\x13\xdb\x03\xd7\xf1\x8b\xdef\xa2\x8a\\\xbeV\x9fO\xd27G\xcd`\xfdl\xa84\xca\xb5TT\xcb\xedL\xab\nQ\xdc\x95r?C\x17}\x06\xedh:\x118&lt;5g\x85\xa7\xb7\xf8\x8f\xe7\x19F\xe3\xcdb\xf6\xdfe&gt;\xfa\x11\xf6\xd6k/K\x16\x8b\x96\x0e\xa8\xc9\x1b\xe2\xdaf](\xa15=RSs2\n\x04y\x10\xfe\xc7\n\x9a\xdb\x91\xe1\xa8\x1d\xa4\'iH\xcaJ"&amp;\xc0\xe1\x9aR\xf0\xeb_\x95\xbf\xb5\xb9\x95o\x0c\x0bh&gt;\xd0&gt;\xbd\xf4\xcf\xa0\xed\x1fr\xf4\xba\x94\x99\xda\xf5I.5m\xd0[X\x0eM:\x07./\xf8ZA \xa9_0\x06I\x8f9Z\x9d\xa95\x8b\xabQ\xe6\xaf\x9b\x82m\xc9\xd9\xea\xa5ES33O\xb8V\xa7\x9cqE\xc2\xa5\x13\xdf\'?\xacj\xc1a1\xc2e?V\xdd\x82\xd9V\xec\xf2e\x1c\x95\x8f3p\xceT\xebjy\xe9\x958\xe1sz\x9c\'&lt;\xff\x00\xaeb\x9dX\x9cu\xe54\xd8QW\x8c\xf6\xd4\xe7\xe0;\xc4\xc1v\xeb\x94\x05D\x9a\x99r~\xb6\xdc\x93J\xfb\xdb\xbf\x04\x8e\xdf\xe3\x1d\xaa\xc4\xca\xe5\xddE1\x90\x06\xe4\xe1Q\xaf\xa9[\x07%H\xaa\xca\xb4\xe4\xcc\xbb\x19\x1bR\xe1G?4\x9f\xf0\x8br\xb8Y\xb7\xf2\xa9\xb7\xfc\xb9\xf2\'\xef(\xfc\x00\x8eY\xbc#1[c\xd7EZjn\xef\xb7-\x96n\x04S\\T\xb3\x8c\xa1\xc2\xdb{H\x05_\x13\xf9\x80c\xa2\xbb\x9fQ\xa7\x1c5\xe9\tfP\xb4\xe4*U\xf4\x9d\x8e\xa4\x1e\xdf\x8f\xc1C\xf9\x88\xc4\xba|\xa04y\xac\xc7\x0c\x9b\xaa\xbc\x8e\xa5K\xf8Iv\xbfA\x9a\xa6\xbd\xf7\xbcIr\xea3\xf2Z\x01\xfe`Gm\x9b\xd6\x81S\xc3m\xdc\x92\'\xfeY\x9aHW\xe8NDmeL{;C\xd0\xadf7r\xd4.\xe56\x9f\xf4\x91\xf7\xf4\x84\xa9\x94\x8f+\x89\xec\xbf\xc3\xe5\xf3\xf5\xfc1\x9a\xd5\xa0\x84=V\x9au)\xc8H\t\xdd\x9ec\xa6&gt;G\xaa\xc1\xdb\xaf\xc7\x92\x95\xde\x8c\xb6\x13\xcb,\xe7?\x8a\xb1\x9f\xe5\x1d\xeb\xa6o\tn]\'\xedv\x8d\x83F\x95\x88\xdc.)\x12\x9f\xdd\xb6Rx\xf3\x18\xa9I\xb8\xdc\x93~\xf8\xf2\xd3\xdb\x03q\xe4\x9ex\x10^9}\xaa\xe2\x12\xe0.re\xc6w\x8c\xa1\x0c\x8c\xa8\x8f\x89\xc7\xa4#\xce"eY\xef\xdaI\xd5\xed\xeb\xd5\xd7PU\x9dI\xb9\x96\xfb2n}U\x16\x98\xb72\x99\x194\xe7\xc3dc\x8c\xe3\x95\x11\xddJQ\xf5\x88\xdb%8\xb9\xf9\x1as\xaf}\xa4\xbb\xb0\x9f\xfa\x14R\x0f\xf2\x11\xa26\x08X\xd6\x0eB\xdf\x85\xe6l\xc77UA\xb7\xeaKrr\xa8vy\x99\xe1*\xfcI\x1f\xf6\x8ei\xb7\x0f\xben#\xff\x00/%\xbd?\x8a\x8e#&amp;\xba\xedYlWR\x81.\x87\xae\xb7\xdd\xc2~\xa1\tJw\'\xe5\x1f\x01bv\xe8XX\xfb)\xc0\xcc&gt;\x9fT\xe7\xe8\xa9\xf5J{5\x00\xebo\x82w,\xe3\n)\xc1\xcf|\x88\xe1\x14*{v\xbc\xde\xc9Tn\xdaRW\x8eO\x1f\x18\xd6ck\x9eI\xe8\xb3k\x8eP\xaeJ#\x93,PYo\xc6\xcbR\xb2\xed\xa4#\xe3\x91\x1fr\x88\xfaJ\xa1\xb5\xe09\xcaS\xf2\xc0\xff\x001\xfaF\xf0,\xd0\x16\xbf\xa9t\x13*\x12\xf1h\x84\x94\xee\xe0\x11\x1c\xb7}\n\x891I\x97\x9az\x96\xc2\x96\x926\xa9L$\x91\xf9\xc6\x01\x8dp7Ygpp\xb2\xaeR\x1aJ-\x9d\xc9\x03\xf7y\xed\x1cv\n\x81zh\xa8v*\x07\x1e\xb1\xb5\xbb\xb59\x15\xc1\xe2\xa9\xcb\xd2h\xa9G\xea\xe5P\x91\xff\x00\xd8\xc75q\xc7\x9cq\x95-@\xf9c\x11\xf2\x1e\xeb\xce~\x8b\x9eAL\xb3N\x98\xaa&lt;\x95\x14K\xa7r\xd2\x8f\xb4\xbc\x08\xe3ni\xe7\xda\x15\xa9\xd4$\xadg\x0c6\x92v\xb61\x9cz\x7f\x9f\xca0\xcc\xbdUj|\x93l\x85=1\xf5\xae\xac\'z\xd5\xeb\xc4#p\x1a-k\xff\xd9'</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67219907408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>785466</v>
+        <v>786600</v>
       </c>
       <c r="B12" t="n">
-        <v>1981</v>
+        <v>2020</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Luis Zubeldia</t>
+          <t>Juan Pablo Vojvoda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x01\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x05\x06\x07\t\x03\x04\n\x02\x01\xff\xc4\x00E\x10\x00\x01\x02\x05\x03\x02\x03\x04\x07\x05\x05\x06\x07\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x11\x07\x12!\x081\x13"A\t\x14Qa\x15#2Bq\x81\x91\n3R\xa1\xb1\x16b\xd1\xe1\xf0\x17$%cr\xc1\x184Cs\x92\xa2\xa3\xff\xc4\x00\x1b\x01\x01\x00\x02\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x02\x03\x04\x01\x07\xff\xc4\x005\x11\x00\x01\x03\x02\x04\x04\x03\x07\x04\x01\x05\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x13AQq"a\x81\x06\x14#2B\xa1\xb1\x91\xc1\xd1\xe1\xf0\x1534Rb\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xdf\xe4 \x89\x08"B\x08\x91\x84z\xae\xeb\xf7\xa7\x0e\x8f)[\xb56\xf1C\xd5w\x07\xfb\xad\xbdNR]\x9b_\xcdI\xcf\xd5\xa7\xfb\xcb#&gt;\x99\x87t\x00\xb8\xd8(qR\xfd\xa2j%6o\xe9\x19\x9e\x9cf\x13H\n\xda\xa9\xa6\xeeF\xd6\xf0\xc98&gt;\x18k\x9f\xc3=\xf8\xf9\xc7\xedw\xdb\xbb\xa6\xb7\xdeE\xb57R\xa1$\x02\xb7\x938\xc8PCc\x8c\'\xc3X**9\x03\xcc\x07\x1e\x981\xebd\x8dl0\xbdR\xec?n\x1a)\x95F\xd9\xaeV\xdc\x9a\x93\xf7\xa2\x02\xdc\x97\xcaV\x8cq\x9d\xc3p$\xfan \x0fX\x9a\xfd0\xf5\xf1\xa0\xfdM\xc9\xb5\'m\\\xec\xcbV\x14\x9f=.h\xecqD\x0eJ3\xc2\xc7\xaf\x94\x9c\x0eN#\x0e#\\l\x17\xae\x85\xcdm\xd6q\x04\x1eD#%\xa9!\x04HA\x12\x10D\x84\x11!\x04H\xb2\xf5\xcf^t\xbf\xa7[\nkQ\xb5^\xe6f\x9bO\x97I\xda\x16\xe2C\x93\x0b\xf4m\xb0H\xca\x8f\xe2\x00\xeeH\x1c\xc1\x16\x9f\xfa\xfb\xfd\xa0\xedy\xb9X\x9c\xb1zw\xb7?\xb2\xb4\xf9\xa0P\xc4\xec\xb2\x94\xba\x92\xd0A\xf3)\xc3\x80\xce{\x84\xa1!\x7f\xde=\xa3V\x97E\xf1\xa9Z\xa7]z\xe9\xbf/\n\xe3\xd3\xaf\xcc\x15\xccLNoq9\'\xed)\\\xf3\x9fR2}cK\x9f\x9b\xb2\xeal|=9\xab\xce\xcd\x93\xbb\x1e\xa2\xccJ\xda\x92sO8\xac\xb17\xe0+ps)\xfb@\xfd\x92A\xe4\x1f\xbd\xc0\xf8\x88\xa7\xd6m\x1dp\xb6d&amp;f\x9d\xa5\xcd7+!\x95\x02\xac\xa4,\x9e@&lt;gq9?\x1e\xc0c\x88\xe7t\xf1\xb5\xd9I]\xcc\xa4\x99\xcc\xcc\x02\xb6\xd3u\xdc\x89e\xb7\xaaw,\xc4\xa4\xf3\x89!\xb9v\xe6\xc2=pq\xc8=\xf3\xc0\x04|\x8fs\x7fh\x8fWZ\x9b\xa37L\xbb\x95J\x9c\xcba\x99\x84\x96f\xfd\xe06\xeb.$\xf0A\x189\xed\xdf\x07\xf0\x8d\x9b\xea\x16\x9f\x94\xd9\xcbx\xbe\xcc/k\xcd\x9f\xd4+T\xbd\x17\xd6{\x81\x89{\xa1\xd6\xd2\xd5&amp;\xb0\xa5\x80\xcd[\x03\x1b\x16{!\xff\x00\xd0/\xe0\x0f\x11?c{\x1d\x99\xb7\\2\xc7\xc3}\x92\x11\x9a\xd6\x90\x82$ \x89\x08"B\x08\xba\xf5\t\xe9:L\x93\xd5*\x8c\xca\x19\x97\x97mN&lt;\xeb\x8a\xc2P\x902I&gt;\x80\x08\xf3\xf5\xedR\xf6\x87T\xfa\xa8\xea9\xc4\xd3j\x0e&amp;\xdd\xa6\xbcdmZ^\xfe\x03AXT\xca\x93\xea\xb7\x143\xdb \x04\x8e\xe0F\x99]f\xdb\xaa\xe8\xa6m\xdf\x98\xf2QI6\xad{X\xf5\r\xbd4\xb2JW8\xeb\x84\xd6j\xca\x04\x86\x87\x7f\t\xbc\xf00&gt;\xd2\x8f\xa9\x00p9\x9b\x1d3\xfb/tv\x8bNj\xa1v[\x8eU\xa7\x94\x8c\xaeje\xe5%\'#\x9e\x01\xe7\xf9D\x0e#\\\xe8\xc8\x89\x9e\xaa\xd9\x84\xe1\xcc\x91\xa6i=\x14\xa2\xb0\xba=\xd1\xda\x13)\x97\xa4Xr2\xa8iAIKr\xe3\xcd\xb7\xb0$\xf2y\xf9\xff\x00X\xaa\xdd}$iE\xdd$\xec\x84\xcd\x95\'\xe1\xb9\xf6\x99-\xe0+\x8d\xb9\xfd?\xd7\xc2\x1f\x89#\xf5\xba\x9eccn\x96X\x13X\xbd\x98\x1d=\xd5\x8b\x93\x12\x96C4\xb7\x81\xc3/\xc8\xb7\xb5M\xfc\xc0\xecq\xfc\xff\x00H\x80=jt5|\xf4\xdf\xba\xe9C\x8eW\xed\x97\x1c\x1f\xf1\x06R\xa4\xbd&amp;&gt;i\x1eR\x9f\xcb\xd3\xb4HP\xd7\xc9\x1c\xc1\x8f7\x07N\xca3\x13\xc3b\x96\x13,b\xc4k\xddX\x1a?uW\xed\xf7\x91$\xc4\xfb\x8c\xb7\xb9\x0f\xc8MK\xa8\xe1\x0e\xa7\x94\xa8`\xfa\xe3\xd0\xfd\xde=\x0cz\x1c\xf67\xf5\xff\x00\xff\x00\x8c\xed\x01U\xad~U\x12\xe5\xf5f6\xd4\xb5l\xa9\xcc\xaez\\\xe5-M\xfc\xc9\xda\xa4,\xff\x00\x12B\x8e\n\xf0,\x90\x9b8\x85M\xa9g\xc3\x07\xa2\x98\xf0\x8e\x85\xc4\x90\x82$ \x89\x08"B\x08\xa0\xef\xb7\x83\xad\xc9&gt;\x92\xfa&lt;\x9a\xb5h\xd5U3q\xdfK\\\x84\x9aY?X\xdc\x9aFf\x1c\x1f\x0c\x82\x96\xc1\xff\x00\x9b\x91\xc8\x8f:\xb6\xed\xddT\xb8\xef\xb6\xaa\x93\xc4\xa6f\xa15\xb9\xc5\x14\xe7cc\x84\xa0g\xe2;\xff\x00\xd2\x07\xacsL~\xcb\xb6\x95\x9by\x95;}\x9f\xba&amp;\xc5\x1eq7mJOt\xc5A\xc2\xf2\x94\xa4\xf6\n%_\xe5\x1b\x0f\xb1eed\xa5P\x95yF\xdf\xe1\xef\x14\xa9\xdf\xc5\x9d\xce\xf3_C\x86&gt;\r;Z:,\x95F\x94mr\xe9q\x94}\xac\x0c|Dw\xd9\xa55\xb9\xc4:&gt;\xf6J\x87\xa4tF\xd6\xd9i\xcdb\xad\xab\xd6\x98\xdb\xcd)\x94ms\xd3j\x87\xca0F\xbdi]&amp;\xe6\xb0*V\xf5ZA/I\xce\xb2\xb6\xdcB\x93\x9d\x99\x1d\xc6\x7f\x18\xe4&amp;\xd2\xae\xa6\xbb3r\xadBW\xedU\xd8UJ\x95\xbe\xf9@r\x8f\\\\\x9e\xd5p\xa7\x02\x1cJ\x9a ~\n\xcf\xe0\x93\x12s\xd9\x1d\xd4\\\xff\x00L\x1e\xd2{&amp;J\xa1Y\xf7z\x1d\xd50\x8a,\xe2\xd4p\x95\xb3:\x02[K\x9f$\xbeZV{\x05\'\xd4\x1e-\xf4\xd2f\r=U\x16\xb20\xdc\xcd\xe8\xbd\x19B$\x94*B\x08\x90\x82$ \x89\x08"\xf3\xf5\xfbIZ\xb3U\xbd\xba\xbc\x9e\xb5\xa6\x16\xafr\xb6i\xd2\xb2\x12\xad-@\x84\x02\x82\xeb\x8a\x00v\xdcT?/\xcb\x1a\xe8\xd0ySwk\x0c\x8d,\xa9KO\x8c\x0b\xdbO\tH?\xeb\xe6NLpT;\xe1\xb8\xf7R\xd4M\xf8\xb1\x8e\xb6[f\xe9\xacIS(r2Jkk\xa9\x96I\xed\xc9\x1d\xb1\xf2\xc4J\xad?\x95z\xa7.\x94\xaa]_=\xca\x19\x8aa\xf9\x95\xfd\x87\xc3u\x94\xa8\xa8\x12L\xb6\xca\x92\xa0\x94\x8e#\x91\xfa\x92\x9aqIm\xad\xc1C\x8f/\xacuf\xca\xc0\xb8\xbeg*=e\xf5%\xe5x\xcc\xabiOt\xf6\x11f\xdf\x12\xcc\xcdS\\Z[J\x9b(;\xb0\x9e\xfcw\x8e2n\xe5\xb9\xbe\x15\xa6\x1e\xa9\xa7\xa86\xe7P\xf7r\xab,\xa3\xc2n\xec\x96h6U\xf6\x92\x1bQ?\xa8H\xcf\xaf1e_Z\x95/#\xaa\x94\xeb\xae\x86\xde\xcf\xa2\xdea\xd9`\x9e\x14\x92\xda\xf2\x8c~\x87\xfa\xfc"\xd9F&gt;\x13\x0f\x92\xa9\xd7\x1f\x8e\xf1\xe6\xbd^Xw]&gt;\xfc\xb2(\xd7\xc5(\xff\x00\xba\xd6iR\xf3\xd2\xff\x00\xfbn\xb6\x97\x13\xfc\x94"\xaf\x12\xe3e]HG\xa8\x90\x82$ \x89\x08"\xf3\x8b\xfbA4\x19\xfaO\\W\xc4\x84\xe2\x92\x95L\xad5&amp;R\xa5rZ2\xdeQ\xfa\xb5\xf9g\x88\x87=\x16R\x9d\x9a\xbf\x9f\xaa\xa1\xa4\xab\xc1N\xdd\xdby\xc0\xc19\xfd\x7f(\x8d\xa9\xff\x00a\xe3\xcf\xf7St?\xf2c&gt;C\xf0\xb6;\xa6\x9a\xd1\xa4\x1an\xa6j\x17\xbd\xeb*\xca\x99@G\x99\xc2\x12\xdey\xef\x8c\x1f\xc63\xbe\x81{@:\\\xbc\xab\xbf\xd9\xab_U$U4\xa76%\xb9\xac\xb6\x95\xab\xe0\x85,\x00\xaf\xca+-\xa7\x90\xb0\xb8\r\x95\xbf\xde\xa3k\x83\t\xddJ\t+\xde\x91U\xa5\xb2\xfc\xa8\n\n\xc7\xd9Vs\xc7x\xa5\xdf:\xd5\xa6\xbaaBr\xbb}\xddRt\xb96\xd2J\x9e\x9cx#\x9f\x96O\'\xe5\xde\r{\\\xe0\x17\x8e\x19\x05\xd6(\x93\xf6\x8f\xf4\x8dx\xcc\xfd\x19mjT\xbc\xe3\xc5[S\xe1\xa4\x84\x95v\xfbG\x03\xf9\xc7~\xaf\xa9\xd6\xac\xfd5U\x0br\xae\xcb\xed\xb8\x8c\xb9/\xe3\'pOn\x06y\x8duP\xe4;X\xaf!\x93\x884\xd9i\'\xdai9R\xa5\xf5CtJ\xb8\xa5!\xb9\x8a\x94\xb4\xe2N\xdcg\xea\x823\xf9\x9c\xc61\xa9UC\xaf\xcb\xce4\xf6\xf2\xa4\x00\\\x1cy\x8a\xc9O\xea\t\xf5\xe3\xf4\x8b=\x07\x8a\x9a3\xe5\xfc*\xa6 r\xd5&lt;\x1e\xab\xd6g@\x15\x06j}\x0e\xe9\x14\xd4\xab\xeau\xb1\xa74v\xd2\xea\xb3\x95\x84J6\x8d\xdc\xf6\xce\xdc\xe3\xd3\xb4f\x08\x95PI\x08"B\x08\x90\x82$ \x8bC\x1f\xb4\xb5\xa4\x17-\xad\xd6L\xa6\xa9;KS\xf4\xbb\x9e\xd7\x96D\xac\xc6\xdf/\x8c\xd2&amp;\x10\xb6\xbed\x04\x02~\x01i\xcfq\x10\xfb\xa2=\x1f2\xdaSv_3\x85M\xaab\xa4\x99\nz{\xabnR\xb5+\xe3\xf6J~\x11\x1bU\xe0\x8d\xe4\xf7S4&gt;9c\x03\xb7\xe1|j5"\xd5E\xcb1K\xbc.I\xe9\xa9YfP\xb4\xd3h\xf2~\xf0\xfe\xd3\xdd^`R\x902\x07%#\'\x93\xe9\x15;;\xa5\xeb\x12\xfd\x93\x17\xae\x8eW\xabn%\x01\x9d\xaa\xad\xc9\xa5\xa4\xa1\xc5\xb7\xbd-\xf8\x88*B\\\x1c\xa4\xb6V\x15\xb8\x10\x07\x11\n\xd7M\xc1\xcf\xa0\x1d9\xf7V\xa6\xb6\x8d\xd2\xf0\x889\xfa\xf2\xed\xfes[\x18\xf6V\xea5\xd5\xa9:h\xed\xbby\xcc8g\xed\xf9\xb7$\xe6P\xf1%G\t\x1bU\xcf&lt;p#\x1a\xfb@t\xdeoP5\x0eb\x97R\\\xf4\xf5&gt;\x96\xc6\xe7\x94\x82|6\xd6\xad\xd8O\x1d\xb8\x07\xe2O\x03\xd6#\x1c]\x1b\xae\xd2\xbb\xe0\x8d\xb2\xc9\x91\xc1E_\xf6y\xd3\xb6\x96^)\xb1\xee\x8d+\xbc\xd3V\x9b\xf7s.dT\xe9*.\x80P\xa4\x810\x83\x80\x1426\x127\xa7\x83\x93\x89\x1d\xd35"m\xc7&amp;\xa4\xe87\xbb\xd5jk\x13\x05\x96\xdb\xa8K\xf83r\x8b\x1fqC\x08R\xb1\xc0\xe5 \xfe=\xceu-\x98F$q\x06\xff\x00o"\xb2\xa7\x92\x8eg:(\xdaF^|\x8f\x9a\xc5~\xd6~\x8f*\xf7E\xa5+\xaf6\xe4\x92\\\x9e\xa2\xcb\x86\xab2\xed\xa7\x97\xa5\xca\x94|A\xff\x00N\x7fB\xaex\x11\x0cza\xd3\x89\xbd_\xd4\t;\x17\xdc\x1bK*}\nyN+\xcc\x94\'\x95\x14\xf23\x81\x9c\xfa\x88\x9d\xc2f\xcdI\xaf\xd2\xaax\xcc\x04T\x82&gt;\xa1\xfd/]Zej\xdb\xf6\x1e\x9dPl{Q\r&amp;\x99F\xa3J\xc8\xd3\xd2\xc2@@e\xa6\x92\x84`\x0e\xc3h\x11^\x89\xf5WHA\x12\x10D\x84\x11!\x04X\x1b\xda\'\xd2V\x9au\x83\xd3\x1d\xc3a\xdf\xf4%?3!O~z\x83?.\xa0\x89\x89\x19\xc6\xdb*B\xdbQ\x1d\x8e6\xa8vRTG\xc0\x8d4\xf4\xad\xa1(\x95\xb2g\x8dV\xaa\x87\x9b\x93\xbb\x9d\x91\x98\x95h\xfdR\x16\x1bk\xcd\xdf\xbf\xa7\xe5\x11x\xa0\xbd1\xec\xa6\xb0g\xe5\x9d\xbd\xff\x00*\xb97\xd2$\xf4\x9d\xe359Ey\x96|m\xc8_\xbco\xda\xf2\x0f\xc0\xa7\x90H\x1f1\x19&gt;\x81\xd3\xdd\xddB\xb6}\xe6\xa59\'+\'.\x85-I\xf74\xb8\x94\x809\x00/\xbf\xc3\x18\x03\xe3\x15a#\xdc\xdb_@\xafLtc\x96\xa7oUzt\x17K\x93\xa4\\\xb7w\xb9\x15;\xe3\xd4\x94\xea\x9dQ\xf3/ \r\xdf\xcb1~]\xfaS9~\xceVM\x0ey,\xcc\xcd;\x94\x87\x10\x95y\x93\x94\x85\x0c\x83\x85\x10H\xcf\xa8\xe3\xd64\x9e]\xd6A\xb95X\xe5\xae\x93o\xbamM\x99{\x96\x8d#7\xb4\x80\xcdAL\xfdj\x12\x07\x01+(*F=6,v\xf8\x1cFQ\xb14J\xdf\xb4\xe9\xc52rm%j{\xc5x%\xbc\xeeW\xc4\x1cg\xfds\x1e\xcd\x9d\xb6k\xb6\x1b,x\xb1j\xe8\xc6\xfb\xacw\xd5\xa4\xd5-\x8d&gt;\xafS\xd7\xb0\xb6\xe5\x1ea%+\xf5\xfa\xb5\x7f\x90\x88\xf3\xec\x84\xe8r\xd5\xacjM\'Tn\x8bVFzZbk\xdd\xe4\xb7\xa4/\xde\xb7L\x00[X\xf8l\xe0\xe7\x93\x93\xe9\x1d\xb4R9\x90Xs (\xca\xb8Z\xf9\x03\x8f\xd2\xd2V\xf7\xed+B\xd8\xb1\xa8\x8d\xdb\xf6\x8d\x12^\x9f$\xd9%\xb9Yf\xf6\xa1$\xf7\xc0\x8a\xa4]\x06\xcb\xe7\xc9\x08\xf5\x12\x10D\x84\x11!\x04V\xde\xb03qL\xe95\xd1-i7\xbe\xaa\xe5\xbb:\x9ab?\x8a`\xb0\xbf\x0c\x7f\xf2\xc4h?\xa3+\x82\xb5k[\xb7\x85\x95v\x0578\xf5k\xdf\xe5\xc3\xa9 \x9d\xa7\xc3R\xc7\xf7s\xb4\x0f\\\x85q\xc4F\xd7\xea2\x9d\x88?\xb2\x9a\xc2Z\xdc\x85\xdc\xc3\x87\xe8\xa5\xe6\x90T\x1a\xa9S\x12\xfdUl\xb8\xe2prR&lt;\xbf\x9cT\xb5\xbe\xe6\x91\xa4\xd8\xd3\x8d+\xcc\x1cg\tKj\x03r\x95\xc0\x1f\xa9\x8an\xa3E\x7f\x8d\x8d\xb0!S\xba\x0e\xb6\xa7\x98\x95\xac\xd6*!;\xd4\xa5\xa1\x97\x11\xd8\xed\xe31\x91\xe9\xf5\xb4P\xaaO;&gt;\xef\x84\xcaf\x88[\x81&lt;\x9f\xf2\xe62{l\xdd\x17\xa3\xc4-\xd9d*%\xd3C\xa8J%\xda}Q/2\xbeS\xe6\xe3\xf0\x11A\xbf*l\xd3%\x1c\x9e\x96}(\xfe \x9f\x87\xc6&lt;\x95\xcd\x921c\xb2\xd2\xd8r\xbc\xdc(\x9d\xd4+s:\xbfr\xcb\xe9\x9d&gt;{\xc1n\xa5:\xd4\xbb\xce\x14\xf0\xa6wx\x8e\x8c\x9e\xd9BH\xcf\xf7\xa2V\xf4c\xa6v6\x9a_\x16\xa5\x85eS&lt;\x16S0\x87\x12\x95$\xfd\xa6\xdaZ\xca\x86y\xc6\xcc\x0c\xf0&gt;\xcf\xc6:\xe8\xc5\xdd\x1bOP~\xe1pU\xf8a\x94\xff\x00\xe4\xfe.\xa7\x84"\xee6_:HG\xa8\x90\x82$ \x89\x03\xdb\x98"\xf9\xe0\x8d\xa0g\xe3\x1aG\xf6\x87h5s\xa5\x9e\xaa\xea&amp;\x8fmO\xca\xdbs\xc2a\xea;\xde\xee\xaf\x01\xc6\\\xfa\xf2\x94/\x84\xa8\xa0\x92\x9d\xb9\xc8\xd9\xda8\xab\x19\x99\xad&gt;\x7f\x95#\x86J\x1a\xe74\x9d\xc7\xdc\x15\xd1\xd0\x9dU\x99\x9e\x93)\xa7\xbf\xb9\x95\xe0\x00\x95v\x8b\x9f\xaa\x8a\x951\x9d \x99D\xf5\xcc\xa9z\x84\xc3[\xa5|\x17&gt;\xb1\x05&gt;l\x80~\x04E\x1eF\xb9\xd5\x99\x07U\xf4h\xa6k)\x1a\xee\xa1G\xce\x8f\xbd\xa3\xda\x9b\xa5\xf4\xa9\xed:\xb8,\xda\xc4\xdc\xe4\xa4\xf3\x8eI\xd4e\xe4T\x130\xc6\x0e\xfc\xfc\x08\xf9\xf1\x8f\x80\x89A\xd3\xee\xb9\xde\x9a\x8fp\xfd3~\xd6\xa4QIu\x1e*d[\x92;\xc9Y;\x03\x8e(\xf7\x1c\x1c\x04\x8c\xe4\x1e\xd1\xdd=&gt;Rln\x17&lt;\x15\x8d{\x07\x86\xceY\x1ab\x8b5C\xaa\xbbY\xb0n\x04LS^\xcb\x8eK\xa5\xcf\xdc\xab\xe29\xc6\xdf\xe9\x9f\x87o\x9b\xee\xe6\xa9\xc9[NM\xd7\x1e\xf0\xd1\xb7*\xfa\xcd\xbf\xce"\x06x\xdf\x91w\xbaV\xbe\x1c\xdf\xaa\xc3\xb6m\xcff\xd0uF\x9f}\xea\x9d\xc2\xcd6\x94\xc4\xc6\xe9\x89\xa9\xcc!\xb9t\xac\xf8`\xac\x9cq\xb8\xa59&lt;dF\xc7\xba2\xd3iy\xf9u\xeb$\xf1\x0e\xa5\xfd\xcc\xd0\xdcB|\xae\xb3\xb4$\xcc\x05}\xe0FR\x9fLn&lt;\xee\x11b\xc2\xe9\xdc\xfa\x96\x924\x03\xf0\xaa\xb8\xb5Cc\xa2p\x07Wi\xfa\xee\xa4\'hE\xb1R\xd2\x10D\x84\x11!\x04HA\x17\xc8&gt;\\\xfa\xe20\x97\xb4SNe5/\xa2\xdd@\xa0\xbfJD\xe3\xb2\xd4\x17\'\xe5R\xa4eHr\\\x87\xb7\'\xe0v\xa1C\x8fBGc\x88\xc5\xc33HYFr\xbc\x1f5\xa6\x0e\x98\xaa,T/G\xed\x17f\xfc?xP\\\xa9J\xfb\x02T\x12\x07\xc3\xb0\xf9\xf3\x15M|\x93\xd4\x8b\x0e\xbbE\xad\xd3\xb4\xf2\xa1p!\xc7\xbc\x19\x89\x92\xe0S\x12\xabZ\x80\xf1\x1eF\xed\xfb\x00=\xc08\x03\x98\xa3\xc8\xdc\xb5\xe5\xbb]}\x1e\x96\xf2\xd2\xb3\x9d\xba,\xe5\xa3==u\x01{\xda\x12\xb7\x1c\xbe\x9ci\xcc\xe3\x13\x89e\xe6\xdd\x97\x9cPp\x87;\x92\xa4#\x903\xb8\x82TH\xce&gt;\x11\x91n\xad\x0b\xd5\xed&amp;\xa79T\x9e\xb2t\xff\x00\xdd\xc9[{\x9b\xaa-\x97\x1e\xc3[\xc9N\xe4g\xb20\x07*\xe0z\x08\xdd\xee\xf3;q\xb7\x9a\xf3\xfdK\x0f.\xc8\x1a\xeb\x9d4\x00\xf4VF\x8aU\xab\xda\x81?/r\xd5\xb4\xb2\xb1j6\xc4\xc2\x9b\x94fnq\nm\xf0{\x90\xda\t\xc2\t\xfe \x92b\xaf\xd4=j\x96\xea\x1a\xb4\xa6\xd0\x14\xdbm\xa8\xcc)*\xfd\xd19\x08\xcf\xc7?&gt;3\x88\x8bp\xcdSn\x8b\xad\xed0\xc6\xe0\xa2\x07Y\xf7\xc5&gt;j\xcd\xab\xdam\xcb\xadr\x8d{\xb3.\xbc\xca\xbb\xa7\xdeXRy\xf8`\xfa\xff\x00#\x1bw\xf6*\xea4\x8e\xa4{3\xb4\xb6zN\xa4\x99\x95\xd2\xe8\xcb\xa6L8\x9c\xf0XyiH9\xfb\xde\x1f\x87\x9f\x991q\xc2[\x96/\xf3\xc9Q\xf1\xaf\x14\x80\xf4\nU\xc2%\xd4"B\x08\x90\x82$ \x89\x08"GZ\xa7M\x92\xac\xd3f)\x15ID=-2\xca\x99\x98e\xc4\xe5.!C\nI\x1e\xa0\x82D\x11h\x17\xad\xbd\x05\xbf\xba\x04\xea\xa6b\xcf\xa9\x95\xb7Eri\xca\x95\x97Ro\xca\xdb\xf4\xf2\xe1\xc2\x00\x1f}\xb2\xaf\r@\xf3\x94\x820\x08\x8c\xb4/i\xcb\xd6\x8c\xc4\xc4\xba\xc2\\\x98\x93J\xdbQ\xfb*\xc8\x19\x1f\x81\x8a^/\x1b\xa9\xeb\x04\x81}\x0b\xd9\xf9\x9b5=\xb9\x85\xc5lj}\x1e\xc0i\xc6\xee*ze\xdcX\xde\xa5J\xbd\xe1&lt;\xbc\x0c\x02FF\xe0\x07\xaf\xca2\xcd\x9b~HjJ\x12\xe4\xb0S\xcd\xee\xfd\xeb\xeaS\xa7\xbe;\xab9?\x87\x1cF\x97U;\x85\x9a\xdf}\x14\xf3\xa4\xa5\xe2fh\xf1\xf6\x17\xfdU\xd7R\xab\xb5F\xa5\xbdT\x9c^\xd9y\x16\xd4\xe2\x95\xdbq\x03\x93\xf9\x0fO\x9cD~\xa259\xaa\xcb/V\x84\xcb\x8c\xbfRPJ[[\xbb\n\x14\xda\xc0g\x1c\x8c\x90W\xc79$q\xf2\xe1\xa1i\x92\xa4\x13\xd5pW\xbb$\x07\xb2\xaft\x97\xd21\xeaRVV\xcf\xd5\xfa\xdc\xd5\r\x9b\xaeiS2o\x04\x8f\x12QR\xe9\\\xd3\x01~ \xfb%\xd4 \x91\xc7\x90\x90\x08\xceF\xd1\xbd\x9c\xdd7\xcat\xc7\xd3\xfb\xf6\x9c\x85,\xc8\xcb\xd6\xae)\xaa\xd4\xbc\x8a\x90P\xa6P\xf2[H\xca\x0f\xee\xca\xbc=\xfb8\xda\x16\x01\t \x81s\xc3\x1c\xd9#s\x87\xfd\x88\xfb\x05F\xc5\xc3\x98\xf64\xf4\x07\xee\xb3\xf4"UC\xa4 \x89\x08"B\x08\x90\x82$ \x8b[\xbf\xb4\x9d\xa7\xa9\xb8zc\xb3\xef\xbfv\x05T{\x91\xe9`\xf6\xde[/\xb1\xb8\x1f\xff\x00\x03\xf8F\xb9\xfa\x19\xd7\x94\xae]\xebF\xf3K\x85\xea9\xcb\xce-\xe2\xe6\xd6F\x00P\x1f\xc2G&lt;`\x1c\xe7\xf1\x83\xc6!\xf7\x88\x1c\xd1\xb8\xb1V,\x0e\x7fw\x99\x87\x91\xb8*W}\x0b\xa5z\xa50\xa6\x9f\x90\x97\x98K-\x856\xa5\xa5`\x9c\xa7\x80pRH!]\xb3\xdb\x9cv1\x90\xb4\xfeV\xc7\xd3\xfa\x1bs\x16\xb5\x05\x0c\xca\'z\x14\x94\xa8\xe58V8\xc9\xe7\x9f\x9cV8r{\xbeB\xae\xc5\xf0\xe6\xbd\xd6/\xeb\xc7\xa8i\x1d0\xd2\xdf\x16\x8e\xa4\xa95gP\xd0y*#jwy\x860{\x0c~\xaa\xe0q\x9c)\xd1\xb6\x99\\\xfd\\\xeaT\xbe\xaa\xde\xb4\x157l\xd0\xd3\xe2J\xcb\xb8\x92R\xf2\xce\xcd\x819\xe3f\x12\x01\xc7~O\xa8\x8e\xa8)\x9dKLe;\xf2\xf5\xb2\x87\xa8\xabmMO\x08l-\x7fE\'\xf5\xc1\xfb\xc6\xd4\xa3\xceOi\xa5k\xe8\xaa\xdc\xa4\xa3\xce\xd1g\x99e\'\xdd\xa6\x12\xda\xfc5\x94\xa8\x14\xf79\xc1\x04`\x01\xf2\x8bw\xd8\xd7\xed\xb8\xeaKT\xb5\xe6W\xa7N\xb9.Yz\x87\xd3\xf3K\xa6\xd1\xaa\xcf\xd3\x18\x95\x98\x91\xa9%e-\xb0\xe1e\x08J\xd2\xe1\x05\xbeRT\x16Q\xce\t\x8b\x1f\xb2\xcdmE&lt;\xd1[\xc4&lt;C\xf7P&gt;\xd31\xcc\x92)y\x11b\xb7\x11\x08\x96U\xd4\x84\x11!\x04HA\x12\x10D\x84\x11C\xbfnP\xb2\xe6z\x07\xabS.z\xc4\xb4\xbc\xf4\xd5vE6\xf3\x0f\xab\n\x9b\x9b\nQSH\xf8\xab\xdd\xc4\xc2\xbf\x04\x18\xd0\xde\x9f\\\x13\x96-jbmi\x99S\x8dJ\xa9+e\n\xdb\xef,n\x04\xb0\xa3\xe9\xe6\x03\xcc\x06\xe1\xe8DG\xd4\xbb\x87;o\xb1\nZ\x8d\xae}1\xcb\xb87\x1feR\x9b\xf6\x80Wt\xeebb\x9c\xdc\x9c\xe3\xf2o\xeem\x97\xd2\xd9HCx8\xdcrNFF\tV@\xda=8\xb9\xad\x0fi]\xc9w\xcc\xa6\x89N\xa1\xce\xaa_\xc6\xca~\xde\x0f\xc9\x018\xe5J\xf9\xf2V\xac\xf78\xe1~\x1e\xdc\xc5\xd9\xb4Rq\xe2\x92p\xc32\x92me\x94(z1\xaa]i\xd7\xa9\xb4\xbb\xbaI\x14{ZNx8\xc6\xe9E6\xad\xa1\x05)&lt;\xf9\xb0\xa0\xa06\xa8\xe7\x9c\xe0v\x89\xf9\xa7\xf6\x1d\xb9\xa3\x96|\xb5\x9bdRee\xa5\xe5\xdb\xd8\xf3\x8d\'\nR\xb0&lt;\xd99\xcf\x9b$\xa8\xf7\x88\x8a\xfa\xa6L\xe1\x1c\x7f+T\x8d\x05,\x917&lt;\x9f1\xd4\xac;\xd6v\xaf[zA\xa5\xd5k\xda\xb55\xf5\x89d\xb5%.\xa5y\x9f\x98X\xc2[O\xcb\x9f\xc9&lt;\xfa\x18\xd5U6\xee\xafI\\_\xda\xe6\xaaO7QT\xf7\xbe{\xd3nmq\x0fo\xdf\xbd$r\x08W \xfab.\x1e\xc3\xd2Z9\'#r\x1a=5?\x90\xa0}\xad\xa9\x0e1\xc29\x0b\x9f]\x97\xa1?eo\xb5/N\xfa\xd5\xd1\x89J&gt;\xa3]4\xdaF\xa1\xd0R\xc4\x95vFrq\xb6~\x94Y\x04"j\\(\x8d\xfe&amp;\xd3\xb9\t\xe5\x0b\xc8\xc6\xd5 \x99\x91\xf8\xc7eT\x0e\xa7\x9d\xcc&gt;\x9d\x95~\x198\x91\x82\x90\x8d\x0bbB\x08\x90\x82$ \x89\x03\xc8\xc4\x11i7\xf6\xa9\xfa\x84\xac\xdb:\xd7\xa2\x9a}K\xab\x9f\xa3\xed\xb4\xbf_\xa9\xcbK\xbc\x0e][\xed\xb7\x87\x12\x0eA\x0c\xb6\xbcg\xd1\xe3\x8e\xf1\x08\xea\xf6zk\xb3?\xda\x0b}\xa4&lt;\x95$:\xce\xd5d8\x83\xc9\x00\xfc\xc7\xf4\x88\xfck\xe0\xb6\x17\xf9\x1f\xcd\xd4\xce\x07\xf1\x84\x8c\xf3T\x9b\'D\xa9w\xc5E\xc0\xa6K\xc1\xee\x1eJ[#\x03\xf2\x1d\xc1\x891\xd3\x97EV\x95\xb9Sf}\xaaKIK\xc8\xc8s\xc3\xce\x0e{n#\x82LV\xe7\x9aG]\xb7\xd1Y)\xe0\x8d\xa4&gt;\xda\xa9\x93g\xc8I\xdb\x14\xd4\xd3\xa9r\x9eT\xa5I\xf2\xa0rr=~?\xeb\x88\xfc\xd4\xddK\xb5\xb4r\xc8\x9c\xbco\xea\xec\xbd&gt;F\x9f-\xbebi\xe2|\xa3\x9f(\xe4\xe5J&lt;%#$\x9c\x0ex\x11\x1f\x14N\x96@\xc6\x0b\x92l\x17s\xe4lq\x978\xe8\x05\xca\xd4\xcfW\xbdY\\\x9dM\xea\x13\x97\x04\xe3oIPdVZ\xb7\xe8\xee9\x95!\xbe\xde+\x9f\x17\x15\xdc\xf7\xda\x0e\x01&lt;\x93\x8a\xa5^u\xc5x\xcb\xfb]\xc0\x8f\xb7aTm\xa0\xa1d\x03\x90\xd7\xcc\xee~\xeb\xe5X\x85S\xab*])\xe6t\xed\xcb\xec\xbb5Z\xe5VBO\xc5\xa3N\xf83-\xa9.%\xe4\xe7\xc8A\xf2\x9e&gt;\'\x88\xdco\xb3\x0b\xdb\xc1H\xa2i}\xb5\xa2\xfda\xcb\xcf8\xe5&gt;Y2l\xdfr\xf9yE\t8G\xbd\xb5\x92\xb3\xb58\x1e"\n\x94@\x19I9Q\xd9]F\xea\xd8\xf2\xb7q\xa8\xfe=W4R\x88M\xcf5\xb4\xdb\x0fP\xac}P\xb6e\xef-8\xbb\xe9\xd5\xcaL\xdawK\xd4)\x93hy\xa5\x8f\x86\xe4\x93\xc8\xf5\x07\x90x8\x8a\xdf\xc8\x08\xa8\xb9\xaek\x8bH\xb1\nH\x10\xe1p\xbfa\x05\xeaB\x08\x90\x82(\xc5\xd5G\xb5\xdb\xa1^\x90\xae\x89\xad&gt;\xd4\xbdX3\xd74\x9bjT\xcd\xbdm\xc8\xaeva\x95\x01\x90\xdb\x8aN\x1aig\xf8V\xb4\x91\x9c\x90\x071\xa9\xbfi\x7f\xb7\xdf\xa8.\xa7-\x99{\x07\xa7d\xd4\xf4\xda\xdd\x98[\xaa\x9a]6\xa8~\x91\xa85\xbbk~+\xe8\tS);I-\xb6G\xda\xc2\x94\xb1\x88\x99\xa1\xc3\x9cH\x96N\xe0\x7f+\x8eY\xeer7\xd4\xadcU\xef\xeb\xce\xfe\xbd*\x0c\xdfW\\\xfdjje\xb5L95S\x99[\xcb[\x83\x03\x1b\x96I9NrI\xee\x04H\xae\x875B\x9f5W\x93\xd3[\x92h)\xa5\x1d\x94\xf7\x1cY\xf2\xf1\xfb\xb3\xf1\xe3\xb7\xf8\xc7\x07\xb4\x14n\xab\xa0s\x9b\xbb5\xf4\xe6\xa5\xb0\x1a\xa6\xd3W\xb5\xa7gi\xfc)]\xa5\xdagm\xdb\xb7\xfc\xdf\x8d\xb9\x90\xa9\xaf\x11(\xdb\x94\xad\xb3\xc8P\x11),j]\xb5Im\x97dT\xa7\x94\xe1\'\xcc\xa1\xfe\xb1\x1f3s\x88_DkCE\x82\xef\xdf\xfa\x87dim\x9bR\xd4\x9d@\xad\xb7N\xa4S\x18\xf1\x1e\x98u]\x8eF\x10\x94\xe3*Y8\x01 \x12N\x00\x19\xc4j\xa3\xac&gt;\xb2/.\xaa\xaf/{\x98i\xcau\xb3$\xf1\x14:\x19s\x9f_\xaf{\x1c)\xd23\xfd\xd4\x03\x81\x9c\x95*\xdd\xec~\x1d\xef\x15\x06\xa9\xe3F\xed\xdf\xfa\x1f\x95X\xf6\x9a\xbb\x83\x10\xa7a\xd5\xdb\xf6\xfe\xd6\x1bbUO;\xe2\xba\x95(\xab\x90\x0f\xfd\xa2\xa0\x95\xb3(\xd9[\xee\xf7\xfb\xb8\xe4\xfe\x1f\xd2&gt;\x9c\xd5B:\xec\xa9\xf3O:\xf3B\\}\xa9\x89\xc4%^n\xd89\xc7\xe5\x88\xc9\x12\x0f\tvX\x93\x97G\x97f\x16\xa1\xf7x\x8d\xb1|\xcb\\\x9f*\xcc],\xf5\x9f\xaf\xdd"\xde\xc9\xbb\xf4N\xfe\x98\xa7\xa9KO\xd2\x14\xd7\x15\xe2I\xce\xa4}\xd7\x99\'j\xc7\xcf\x85\'&gt;R\x0f1\xb8.\x86}\xb6Z\x01\xd4\xd7\xb9X\x9a\xc2\xa9{\x16\xf1\x98\xda\x86\xd34\xf7\xfc6}\xc3\xe8\xd3\xca\xfd\xd2\x89\xff\x00\xd3s\x1d\xc0\x0bY1\x17\x8ba\xfcf\xf1\xa3\x1e!\xbf\x98\xfeB\xddK?\r\xd9\x1d\xb1Sx\x10\xa1\x90a\x15E(\xbeA)\xf4\x8c\x0f\xad\x1e\xd3N\x86\xfaz\xd4g\xb4\x97Wu\xfa\x9fK\xaf\xca\xa1+\x9b\x90n\x9f73\xee\xd9\x00\x84\xb8\xb6\x1aZP\xac\x10v\xa8\x83\x8fH\xdb\x05&lt;\xb5\x0f\xcb\x18\xb9Z\xe4\x91\x91\x8b\xb8\xac\x11\xd4\x17\xed\x05\xf4G\xa4\x12\xbe\r\x80\xd5z\xf8\x9e[EL7N\x912r\xf9\xc7\x1b\xd73\xb5i\x07\xe2\x1bW\x1c\xfe:\xce\xebc\xdb7\xd5\xdfTRSV\xac\xcd\xecmj\x14\xd3\x84\xbbA\xb6\\T\xbbIo\xee\xb4\xe3\xa0\xf8\x8f\x1c`\xa8\xa9[I\xec\x84\x81\x16\x1a\x0c\'\x82\xee$\xda\x9eC\xa7\x7f5\xc1-W\x10ef\xca\x14\\u\xd9\x82\xd3\x93*\x98q\xc9\x89\xac\x82\xe2\xdc$\xab\'\xd7\xf11\xd4\xa9!3\x87h?T\xdba\xb4\x1e\xdb\xb01\x12\xce\xf9\xac\xb45X\x95\x1ajd+?L\xa0\x0cnRs\xf1\xe3\x98HTfhUV\xea\xd4I\x87\x1bR\x16\x14\x14\x85`\x83\x9e\xfcv?8\x8fs\x06b\xd5\xd4\xc7[P\xa7/J\x1dd\xdaw\xec\xbc\x85\x95\xacs\xe8\x93\xac3\xb5\xb9\x1a\xf3\xb8KSI\xf4C\xca\xe3\xc3X\xfe3\xe5P\xef\x83\xf6\xa46\xa4\xf55\xa5\xfd:\xd2\x93;q]\x0c\xcdL%\xcc\xcb\xd2i\xb3\tze\xec\x0e@O\xdd\x1f\xdeQ\t\xf9\xc7\xcc\xb1,\x02\xa9\x98\xa7\x06\x16\xdd\xaf\xd5\xa7\x90\x1c\xef\xdb\xf0\xbe\x87C\x8dS\xbf\x0e\xe2\xca\xedZ,G2y[\xbf\xf2\xa0\xafT\xbd`jgS\xb7\x0bj\xaf\xbe\xb9:&lt;\x8b\xa5t\x9bv]\xc2\xa6YQ\xe3\xc5p\xf1\xe2\xbaG\x1b\x88\x00\x02B@\x04\xe7\x18\xcb\xd3g\xa6\x9d\xf1gS\xb7\x9c\xeeW\xf4\x8f\xa4\xe1\x94,\xa0\xa4l\x11\xec7=O2\xa8U\xd5o\xab\xa8t\xaf\xe7\xcb\xa0\xe4\x17iU\x06)\xc0\xcb4B\xd4\xa1\x8e#\xe6\x86]\xaaV\x92\x1dI\xda\xd7\x9b\x18\xef\xc7\xf4\xf8~\xb1%\xf5\x00\xb8\xb5\xdd~\xcc\xcb\x84\xdd2\xac%&gt;_\x11K\xe0\x13\xdb\x03\xd7\xf1\x8b\xdef\xa2\x8a\\\xbeV\x9fO\xd27G\xcd`\xfdl\xa84\xca\xb5TT\xcb\xedL\xab\nQ\xdc\x95r?C\x17}\x06\xedh:\x118&lt;5g\x85\xa7\xb7\xf8\x8f\xe7\x19F\xe3\xcdb\xf6\xdfe&gt;\xfa\x11\xf6\xd6k/K\x16\x8b\x96\x0e\xa8\xc9\x1b\xe2\xdaf](\xa15=RSs2\n\x04y\x10\xfe\xc7\n\x9a\xdb\x91\xe1\xa8\x1d\xa4\'iH\xcaJ"&amp;\xc0\xe1\x9aR\xf0\xeb_\x95\xbf\xb5\xb9\x95o\x0c\x0bh&gt;\xd0&gt;\xbd\xf4\xcf\xa0\xed\x1fr\xf4\xba\x94\x99\xda\xf5I.5m\xd0[X\x0eM:\x07./\xf8ZA \xa9_0\x06I\x8f9Z\x9d\xa95\x8b\xabQ\xe6\xaf\x9b\x82m\xc9\xd9\xea\xa5ES33O\xb8V\xa7\x9cqE\xc2\xa5\x13\xdf\'?\xacj\xc1a1\xc2e?V\xdd\x82\xd9V\xec\xf2e\x1c\x95\x8f3p\xceT\xebjy\xe9\x958\xe1sz\x9c\'&lt;\xff\x00\xaeb\x9dX\x9cu\xe54\xd8QW\x8c\xf6\xd4\xe7\xe0;\xc4\xc1v\xeb\x94\x05D\x9a\x99r~\xb6\xdc\x93J\xfb\xdb\xbf\x04\x8e\xdf\xe3\x1d\xaa\xc4\xca\xe5\xddE1\x90\x06\xe4\xe1Q\xaf\xa9[\x07%H\xaa\xca\xb4\xe4\xcc\xbb\x19\x1bR\xe1G?4\x9f\xf0\x8br\xb8Y\xb7\xf2\xa9\xb7\xfc\xb9\xf2\'\xef(\xfc\x00\x8eY\xbc#1[c\xd7EZjn\xef\xb7-\x96n\x04S\\T\xb3\x8c\xa1\xc2\xdb{H\x05_\x13\xf9\x80c\xa2\xbb\x9fQ\xa7\x1c5\xe9\tfP\xb4\xe4*U\xf4\x9d\x8e\xa4\x1e\xdf\x8f\xc1C\xf9\x88\xc4\xba|\xa04y\xac\xc7\x0c\x9b\xaa\xbc\x8e\xa5K\xf8Iv\xbfA\x9a\xa6\xbd\xf7\xbcIr\xea3\xf2Z\x01\xfe`Gm\x9b\xd6\x81S\xc3m\xdc\x92\'\xfeY\x9aHW\xe8NDmeL{;C\xd0\xadf7r\xd4.\xe56\x9f\xf4\x91\xf7\xf4\x84\xa9\x94\x8f+\x89\xec\xbf\xc3\xe5\xf3\xf5\xfc1\x9a\xd5\xa0\x84=V\x9au)\xc8H\t\xdd\x9ec\xa6&gt;G\xaa\xc1\xdb\xaf\xc7\x92\x95\xde\x8c\xb6\x13\xcb,\xe7?\x8a\xb1\x9f\xe5\x1d\xeb\xa6o\tn]\'\xedv\x8d\x83F\x95\x88\xdc.)\x12\x9f\xdd\xb6Rx\xf3\x18\xa9I\xb8\xdc\x93~\xf8\xf2\xd3\xdb\x03q\xe4\x9ex\x10^9}\xaa\xe2\x12\xe0.re\xc6w\x8c\xa1\x0c\x8c\xa8\x8f\x89\xc7\xa4#\xce"eY\xef\xdaI\xd5\xed\xeb\xd5\xd7PU\x9dI\xb9\x96\xfb2n}U\x16\x98\xb72\x99\x194\xe7\xc3dc\x8c\xe3\x95\x11\xddJQ\xf5\x88\xdb%8\xb9\xf9\x1as\xaf}\xa4\xbb\xb0\x9f\xfa\x14R\x0f\xf2\x11\xa26\x08X\xd6\x0eB\xdf\x85\xe6l\xc77UA\xb7\xeaKrr\xa8vy\x99\xe1*\xfcI\x1f\xf6\x8ei\xb7\x0f\xben#\xff\x00/%\xbd?\x8a\x8e#&amp;\xba\xedYlWR\x81.\x87\xae\xb7\xdd\xc2~\xa1\tJw\'\xe5\x1f\x01bv\xe8XX\xfb)\xc0\xcc&gt;\x9fT\xe7\xe8\xa9\xf5J{5\x00\xebo\x82w,\xe3\n)\xc1\xcf|\x88\xe1\x14*{v\xbc\xde\xc9Tn\xdaRW\x8eO\x1f\x18\xd6ck\x9eI\xe8\xb3k\x8eP\xaeJ#\x93,PYo\xc6\xcbR\xb2\xed\xa4#\xe3\x91\x1fr\x88\xfaJ\xa1\xb5\xe09\xcaS\xf2\xc0\xff\x001\xfaF\xf0,\xd0\x16\xbf\xa9t\x13*\x12\xf1h\x84\x94\xee\xe0\x11\x1c\xb7}\n\x891I\x97\x9az\x96\xc2\x96\x926\xa9L$\x91\xf9\xc6\x01\x8dp7Ygpp\xb2\xaeR\x1aJ-\x9d\xc9\x03\xf7y\xed\x1cv\n\x81zh\xa8v*\x07\x1e\xb1\xb5\xbb\xb59\x15\xc1\xe2\xa9\xcb\xd2h\xa9G\xea\xe5P\x91\xff\x00\xd8\xc75q\xc7\x9cq\x95-@\xf9c\x11\xf2\x1e\xeb\xce~\x8b\x9eAL\xb3N\x98\xaa&lt;\x95\x14K\xa7r\xd2\x8f\xb4\xbc\x08\xe3ni\xe7\xda\x15\xa9\xd4$\xadg\x0c6\x92v\xb61\x9cz\x7f\x9f\xca0\xcc\xbdUj|\x93l\x85=1\xf5\xae\xac\'z\xd5\xeb\xc4#p\x1a-k\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe1\x00\xbcExif\x00\x00II*\x00\x08\x00\x00\x00\x06\x00\x12\x01\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x1a\x01\x05\x00\x01\x00\x00\x00V\x00\x00\x00\x1b\x01\x05\x00\x01\x00\x00\x00^\x00\x00\x00(\x01\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x13\x02\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00i\x87\x04\x00\x01\x00\x00\x00f\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00\x06\x00\x00\x90\x07\x00\x04\x00\x00\x000210\x01\x91\x07\x00\x04\x00\x00\x00\x01\x02\x03\x00\x00\xa0\x07\x00\x04\x00\x00\x000100\x01\xa0\x03\x00\x01\x00\x00\x00\xff\xff\x00\x00\x02\xa0\x04\x00\x01\x00\x00\x00\x96\x00\x00\x00\x03\xa0\x04\x00\x01\x00\x00\x00\x96\x00\x00\x00\x00\x00\x00\x00\xff\xe1\r\xf2http://ns.adobe.com/xap/1.0/\x00&lt;?xpacket begin=\'\xef\xbb\xbf\' id=\'W5M0MpCehiHzreSzNTczkc9d\'?&gt;\n&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n&lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n  &lt;Attrib:Ads&gt;\n   &lt;rdf:Seq&gt;\n    &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n     &lt;Attrib:Created&gt;2022-04-27&lt;/Attrib:Created&gt;\n     &lt;Attrib:ExtId&gt;b58b6222-e4df-4694-b7a5-ca98bc6db1cd&lt;/Attrib:ExtId&gt;\n     &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n     &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n    &lt;/rdf:li&gt;\n   &lt;/rdf:Seq&gt;\n  &lt;/Attrib:Ads&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n  &lt;dc:title&gt;\n   &lt;rdf:Alt&gt;\n    &lt;rdf:li xml:lang=\'x-default\'&gt;jogadores sofa&lt;/rdf:li&gt;\n   &lt;/rdf:Alt&gt;\n  &lt;/dc:title&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n  &lt;pdf:Author&gt;Guilherme Mirra&lt;/pdf:Author&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n  &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n &lt;/rdf:Description&gt;\n&lt;/rdf:RDF&gt;\n&lt;/x:xmpmeta&gt;\n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n&lt;?xpacket end=\'w\'?&gt;\xff\xdb\x00C\x00\x06\x04\x05\x06\x05\x04\x06\x06\x05\x06\x07\x07\x06\x08\n\x10\n\n\t\t\n\x14\x0e\x0f\x0c\x10\x17\x14\x18\x18\x17\x14\x16\x16\x1a\x1d%\x1f\x1a\x1b#\x1c\x16\x16 , #&amp;\')*)\x19\x1f-0-(0%()(\xff\xdb\x00C\x01\x07\x07\x07\n\x08\n\x13\n\n\x13(\x1a\x16\x1a((((((((((((((((((((((((((((((((((((((((((((((((((\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfa\xa6\x8a(\xa0\x02\x8a(\xa0\x02\x8a+\x0b\xc7\x1e$\xb7\xf0\x97\x85\xefu\xab\xc8\xdeX\xad\x94\x1d\x89\xd5\x89 \x01\x9e\xdc\x9a\x00\xbd\xadk\x1a~\x89b\xf7\x9a\xad\xdcV\xb6\xeb\xd5\xe48\xc9\xf4\x03\xa9&gt;\xc2\xbc\xb3\xc5?\x1d4\xbb8e_\ri\xd7Z\xbc\xea\x0e\x1f\x1eT@\xfa\xe4\xf2\x7f\x01^\x11\xe2\x1f\x17\xeb?\x10u\xc7\x96\xf9\xa4H\x04\x84\xc7\x18\xc8H\xe3\xec\xaa=\xfb\x9e\xa6\xb2\xe5\xb6\xbayp\xb1\x11\x12\x13\x85&lt;.\x01\xfa\x1a\x97+\x17\x18\\\xeau\xaf\x8f\x1e;y~\xf5\xb6\x9c\xa4\xeeUK`G\xfb\xa4\xb6jo\x0f~\xd1^)\xd3\xa7U\xd6!\xb3\xd4\xe1nNS\xca\x7f\xc1\x97\x8f\xd2\xb8\xeb\xc8^\xe6\xcdc\xbb\x0e\xa0\x1c\xee\xda\x1c{\n\xcc\xb9\x16\xd1\xb7\xd9\xcc)1\x03\xbb\xaa\x91\xed\xc0\xe3\xf3\xa1J\xfb\r\xc2\xdb\x9fY|:\xf8\xcb\xa1\xf8\xbeqi&lt;o\xa5\xdf1\xc4i;\x02\x92{\x06\xf5\xf65\xea\x03\x9a\xfc\xf2\x1al\xc5\x83\xd8\xc8b\xc9\xe6\'9\x1cz\x1f\xf1\xafy\xf8\x1f\xf1F\xf3L\x9e\x1f\x0f\xf8\xb2\xe4\xc9j@Kk\x86\xf9\x8cd\x9e\x15\x9b\xa9^z\xf6\xa7rZ&gt;\x94\xa2\x81\xcd\x14\xc9\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n\xf0\x1f\xda\x1f\xc4?n\xd4 \xf0\xf5\xac\x86H\xad\xd4Mq\x08\xe0&lt;\xa4\x8f,\x1f`2\xdf\x88\xf4\xaf~\xaf\x915i\x05\xff\x00\x8d\xbcC\x7f1c+\xde\xca\x00=\xb6\xb1Q\xfa\x01QR\\\xb1\xb9\xa5(\xf3J\xc4:&amp;\x9c\xf0\x9c\xbb\x06c\xc1\xc7\xf4\xae\x86\xdbN@\x80\x04\xf7\xe9U\xb4\xf023\xc7\xf3\xae\x8e\xdaE\xd829\xf7\xaf.Srz\xb3\xd8\x8c#\x05\xa23$\xd1`\x9d@t\x19\xc7\x04qX\xf7\xbe\x0b\xb7\x96O51\x1c\x80cr\xae3\xf5\xf5\xae\xd0:\x9c\xe3n=s\xd2\xa2\x9eP\x01 \x12(Rq\xd9\x89\xc5Kty\xee\xa3\xe1\x81\xe4\xed,\x0b\x0e\xa5&gt;\\\xd7#y\xa3If\x03\xa0-\xb4\x93\xb5\x9b\xa1\xf5\x07\xd2\xbd^\xeeM\xc3\xda\xb05(\x92D*Td\x8cV\x90\xad$\xc8\xa9B-l{W\xec\xfd\xe2\xf7\xf1?\x83\x9a\xde\xf2\x7f:\xff\x00M\x93\xc8w\'\x97O\xe0o\xcb#\xf0\xafP\xaf\x96\x7ff\xbb\xd3\xa4|I\xbf\xd2\xd80\x8bQ\xb6m\xa0\xf4\xdf\x19\xdd\xfc\x8bW\xd4\xd5\xe9\'us\xc8\x92\xb3\xb0QE\x14\xc4\x14QE\x00\x14QE\x00\x14QE\x00\x14QE\x00\x15\xf2%\xf4F/\x10j\x83\x9f\xf8\xfa\x97\xbf\xfd4j\xfa\xee\xbeT\xf1\xbc\x7f`\xf1w\x89\x15F\xe7\x8a\xe9\xdc)\xee\x0f\xcc?\x98\xac\xaa\xab\xc4\xda\x83\xb4\x87i\x89\x9f\x99\xb2\x10\x1c\x82\x07z\xe8\xadR&amp;\x18\xdd\x9f\xf8\x10\xaf\x17\xd4n\xb5feO\xb5\x18\xdaL\xb2\xa2\xf3\xc7\xd3\xd2\xa9\xe83]\xb5\xd1x\xb5\t.Y0H\x0cW\x15\xc7\xec\x15\xafs\xbf\xdb\xbb\xda\xc7\xd0\x1fe\x03\x9e\xc7\xa5Gv\x96\xf6\xd1&lt;\xb7\x12*\x81\xdc\x9c\xe2\xb1&lt;#\xaa\xbd\xfc\x08\x92\x1f\xb8zV_\x8d\xaf&amp;C\xe4B2\xeep\x01\x19\xac\x92W\xb1\xa5\xe5a/\xbca\xa1y\xcd\x00\xbaFe\xe0\x8d\xb8\xac\x87\xd5\xac\xaff)k(\xc1\xe4n\xe2\xb8\xaf\x12\xd9\x1d*;k\x8b\xa8\xf7\x9b\x95g\x8c\xb0\x03\x858\xcfN\xfe\x95~\xc42O\xf6+\x98\xc0-\x18\x99\x1c\x0cd\x11\xfa\x1a\xe8t\xa2\x95\xcc\x15Y7\xcbs\xb5\xf01kO\x8a\xfe\x19\x9f$o\xb9\xf2\xc8\xf6e+\xfdk\xebz\xf9\x1b\xc3\r\x8f\x18xVw*\x02\xddDK\x93\x800\xdc\x92M}M\xa5k\xfa^\xadsqo\xa6\xdfCq5\xb9\xfd\xe2\xa1\xce=\xfd\xc7\xb8\xae\x9arV\xb1\xc7V.\xf74\xe8\xa2\x8a\xd4\xc4(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00\xa5\xae]\xb6\x9f\xa2\xdf\xdeF\x03=\xbc\x12J\xa0\xf4%T\x91\xfc\xab\xe5\xbdv\xf2O\x10kwZ\xbb\xaa+^\xdb\x03 \x8c\x10\x0b*\x81\x9c\x1e\x9c\x0e\x95\xf5.\xb7\x01\xba\xd1\xaf\xed\xd7\x1b\xa5\x82H\xc6zd\xa9\x15\xf2\xd7\x93%\xab$l\xa3\xcb1\xedc\xe8{\x0f\xd2\xb9\xab\xc9\xa6\x91\xd7\x86\x8aqo\xa9\xcfC\xa6\xb4WOx\xca\xcf\xe6Fb`{)\xea=EK\xa0\xe9\x16zR]\x1bXg\x7f8lr\xe7\xa2\x83\x90\xa3#\xd6\xbb+HVDP\x9f\x8e*\xdb[\xa4P\xb1\xd83\x83\xc9\xae?k$\xacw\xfb(\xefc/\xc2\xd0\xf9\x12Kp\xcb\xb1d\'\x81\xd8Su\xf8\x9aK\xb1,\\\xbac\xa8\xea\r^\xd2~yUc\xc1@9\xf4\xebL\xd6sot$?q\x86*5\xb9g=yi5\xd4J\x97\x16\xf0\xc8\xaar\xaa\xe9\x9d\xa7\xdb9\xc5$Z?/3\xb030\xc6H\xe7\xf3\xae\xb6\xdc,\xb6\x88\xea\x17\x1bx5V\xf0\x84\x8b\x8f\xa9\xa1\xcd\xbd\x03\x95\x1c\xecp"-\xabH\x01X\xa4!\x81\xaf@\xf8"]|us#\x92ZkG\x1fA\xb9H\xfeU\xc11Y\'X\x9b\x94bI\xf6\xafS\xf8)\x04G\xc4W\xb2\xa1.\xc9k\x82\xd8\xc0\x1b\x98t\xfc\xab\xa2\x9f\xc7\x13\x9a\xa6\x94\xe4{5\x14Q^\x81\xe5\x85\x14Q@\x05\x14Q@\x05\x14Q@\x05\x14Q@\x01\xe4s_4x\xd6\xc9\xb4\xedn\xfe\xd9\x98\x95\x86FUR?\x84|\xca\x7f#_K\xd7;\xe2\x1f\x07\xe8\xfa\xed\xc1\xb9\xbe\xb5\xdds\xb0\xa6\xe1#.\xee8\xc8\x07\x9cVUi\xf3\xa5cj5}\x9bw\xeax.\x97p\x8a\x98S\xc1\xabw\x92\xf9\xb6\xd2"\xb1\x07a\xe75\x83b\x92C~\xd0\x13\x82\xa4\xab\x0fB8\xfe\x94Ks 8\xdcIo\xe1^\xf5\xe7\xba~\xf1\xe9\xc6\xa7\xbbq\xf6\x1a\xe7\xd9\xe5e\x92\xd1\xa3\x8f\x18\xde\x06\xe1\xf8\xe3\xa5;X\xd7M\xe3!\x8a\r\xf8\x00\x1c\xa9\x00\x7f\xf5\xfd\x85%\x9cP\x82\xd9\x9a\x08\xe4\xea\x03I\x83\xf8\xf6\xa7\xca\x11b\xda\xd2\xdby\x99\xe0\x17\x00\x9fZ\xd3\x966#\x9aw\xbd\x8bZt\x8e4\xe5s\x802~_\xee\x8a\xcf\xbf\x96L\x9f\x98l\xeb\xc1\xedP$\xec\x93\x14R\xdbs\xf2\xe0\xe7"\x9fr\x1d\xad\xd7\xa0!\xc8\xe9\xd0c8\xac\xdc,\xcbU.\x88\xf4\x9b\x1b\xcdSQh\xec-\xa7\xb9u\\\xb2\xc5\x19|/L\x90;s\x8a\xf7\xbf\x85^\x1d\xba\xd2,\xee\xef5(L7We@\x89\xb1\x94E\x07\x19\xc7BI&lt;}+\x95\xfd\x9fl\xf3&gt;\xb5z{yp\x8f\xd5\x8f\xf4\xafe\xae\xeaT\xd2\xb4\x8f&gt;\xb5V\xef\x00\xa2\x8a+s\x98(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00\xf9\xaf\xc7V-\xa2|A\xd4\x93\x81\x0c\x92}\xa6?L??\xcf5\x93{\xa6A{\x16~`\xae\x0e6\xb1\x18\xfab\xbb\x7f\x8f\xf6\xdfg\xd7t\xdb\xfd\xbf\xba\x92\xdd\xa3\x93?\xec\xb7_\xfcxW\r\xa5\xdd\x07_-\x8f\xdd\xe3&gt;\xb5\xc3UZN\xc7\xa3B^\xea\xb9\x8b\x07\x85\xec#\x99\x9a]B\xe22\x0e\n\xc8\xfc\x0f\xce\xa5\x7f\r\xe9h\xa4\x1b\xf9\xa5 \xe7\x0b7\xf8WT\xda]\xbd\xdb\xaf\x99\xf3\x126\x83\x9c\x1f\xa1\xa6\r\x12\xd6\xd1\xd6X\xd4\xee^r\xd8\xac\xf9\xdd\x8e\xaeg\xe4cXh\x96\x96)\xba(\xff\x00x\xdd\x19\x8eXS\xae]v\x08\xc1\x04.r}\xcd]\xbf\x95 fg\x90d\x0c\x8ek\x02y\xf8\xf2b\x18\x91\xce[\x9f\xba=iF\xefVe6{g\xec\xf7\xce\x89\xab0\x18\x1fj\x03\xf2A^\xaf^_\xf0\x06!\x1f\x86\xaf\xc2\x8c/\xda\xb0?\xef\x81^\xa1^\x85?\x85\x1emUi\xb0\xa2\x8a*\xcc\xc2\x8a(\xa0\x02\x8a(\xa0\x02\x8a(\xa0\x02\x8a(\xa0\x02\xb1|a\xe2m7\xc2:\x05\xc6\xaf\xacH\xe9k\x0e\x06\x11w;\xb18\n\xa3\xb95\xb0\xee\xb1\xa9g`\xaa:\x92p+\xe4\x8f\xda/\xc6\xef\xe2?\x14&gt;\x8fe0m\'Lb\xa3a\xc8\x96l|\xcd\x9e\xf8\xfb\xa3\xf1\xf5\xaa\x84y\x9d\x84\xdd\x8e\xa3\xc6_\x13\xb4/\x88F\xd2\xdfE\xb7\xbdCg\xb9\xe4k\x98\xd5C+``a\x8f\xa5q\x12G.\x8fr&amp;@\xefd\xc7\x9c\x1c\x94\x1e\x9fJ\xce\xf0\xe6\x9baet\xb7Zl7\x10E&lt;{\x02\xcf/\x98\xcd\x8c\x1c\xf4\x18\xae\xceH\x96k\x17\x04|\xd8\xae\n\xd2J\xa3q\xd8\xf4h\xc5\xfb4\x99V\xdb_\xb4H\x95\xe0\x94\x11\x9e\xfdEG7\x88c\xcb4\xb3\x05L`\x02\xdc\n\xabk\xa6i\x97w\x00\xdd[F%=J\xe5I?\x81\x15\xa3\xff\x00\x08\xee\x8d\x03\x87kH\xc9\x1c\xfc\xe4\xbf\xf3\xa8\xbc{\x17iw9\x8b\xfdY\xaf\xe4\tf&lt;\xc5\x04\x92\xf8\xe3\xff\x00\xafZ\x9aN\x9cV&amp;y\x0ednr\xd5j\xee8\x8c\xa8\xb1\xc6\x88\xa3\x80\x14\x7f*\xd80yV\xeaH\xc7\xd7\xe9\xe9\xe9JR\xba\xd0\xa8G[\xb3G\xc0?\x13-|\x1b\xad\xc1\xa1\xea\xd6\xdb4\xcb\xe72\x1b\xed\xc7\xf7/\xc2\x80F&gt;\xef\x03\'\xb6s_FF\xeb"+\xa3\x06F\x19\x04\x1c\x82=k\xe2\xbf\x1b@\xb2i\xc4\x9f\xbf\x19\xde\t\xfd\x7f\x9dn|)\xf8\xd3\x7f\xe1;\x11\xa4\xeav\xed\xa9\xe9\xf1\xff\x00\xa8\x1ef\xd9!\x1f\xdd\x04\xe4\x15\xf4\x07\xa5w\xe1\xa2\xeaAr\xeey\xf8\x9fv\xa6\xbdO\xaeh\xaf2\xf0\xe7\xc6\xdf\x07\xea\xf3\xad\xbd\xc5\xd4\xda]\xc1\xe0\x0b\xd4\xd8\x84\xff\x00\xbe\t_\xcc\x8a\xf4\x9by\xe2\xb9\x85&amp;\xb7\x95%\x85\xc6U\xd1\x83+\x0fPG\x06\xad\xa6\x8c\x9a\xb3\xb3$\xa2\x8a)\x00QE\x14\x00QX^+\xf1f\x8b\xe1K!s\xae\xdf\xc5l\xad\x9d\x88~g\x90\xfa*\x8eM|\xf3\xe3\xff\x00\x8f\x1a\xae\xab\xe6\xda\xf8Z6\xd2\xec\x8f\xcan[\x06\xe1\xc7\xb7d\xfc2}\xc5\\`\xe5\xb0\x9c\x92=\xfb\xc5\xfe8\xf0\xf7\x84\xa1\xdd\xad\xea1C)\x19Ku\xf9\xe5\x7f\xa2\x0e\x7f\x13\x81^%\xe2\xbf\x8f\xfa\x9d\xd9x|\'\xa5\x8bX\xfa\x0b\x9b\xa1\xbd\xfe\xa1G\xca?\x12k\xc4\x1e\xe2k\x8b\x87\x9egi\xaed9i$&amp;Gc\xeaX\xd7\xa1\xf8_\xe1F\xbd\xad,W\x1a\xa4\xab\xa6\xd9\xbe\x08\x12\xe5\xa5+\xea\x13\xa0\xfc\x7f*\xddR\x8c\x15\xe4g\xce\xdb\xd0\xe3\xb5\xaf\x12\xeb\xda\xdc\xcf6\xb7\xaa\xdd^H\x0f\xca\xb2I\x94S\xec\xa3\xe5\x1f\x95sHw\x1eq\x9a\xf6\xdf\x8a\xbf\x0f\xf4\xff\x00\x0fxF\xc6\xe7D\x85\xc8\xb7\x97m\xd4\xaer\xf2\x06\xc6\x18\xfb\x021\xf8\xd7\x88)\xdb!\x1e\x84\x8a\xd6\x16p\xba\xef\xfeC\xab\xf6W\x97\xea\xcfB\xd1\x1aI\xad,\xe6\xfe\x18\xe2U\x1f\xd6\xbbm&lt;\x07\x8c\x0c\n\xe5&gt;\x1f\xdcY\xdc\xe8\xefc4\xd1\xa5\xda91\xa3\x1c\x17S\xceG\xd0\xe4~U\xd5Z\xa9\x86m\x87\xa1\xaf\x0e\xbc\x1c&amp;\xd3=Z\x13R\x82h\xa1qj\xd0\xddJ\xa9\x81\x93\x95\xab*g\xb9@\xb2\xc6\xaa\x07\x05\x89\xebZW\xd6\xb8D\x93i#\xbdB\xaf\x02\xf2\xd9\xfaVF\xa5(\xedT\\\xc6\x08\xdd\xb4\xf1\xc5_\xbd\xe9\xdf\xe9\xe9S\xdbFe\x97\xccU\xc2\xa8\xcei\xff\x00g3\xccW&lt;\nLkC\x82\xf1}\xb1\x97G\xb9nA\x8f\xe6\xc8\xfdk\xcbbo\xf4\xb5\xc7\xf7\xab\xdc\xfc{c\xf6/\t\xdf\xddH\xab\x1cn\x828\xcb\x907\xb9`0\xa3\xbe\x06O\x15\xe1Pd\xcb\xb8\x0e\x875\xea\xe0\x13\x8cn\xfb\x9ef6JR\xb2\xectV\x9a=\xfe\xa7\x0c\xd3i\xf6\xb3\\}\x99\x01\x98D7\x15\\\xe0\x12\xbdH\xab\xbe\x1a\xf1^\xb7\xe1\xc9\xb3\xa1\xea\x97V\x0c\x0eZ%l\xc4\xc7\xdd\x0eG\xe9]O\xc1;\xa7\xb7\xf1\xe41\xa6H\x9e)#`\x0e?\x87?\xcdk\xd5|e\xf0\xcbG\xf16\xf9\xd5E\x8e\xa2G\xfa\xf8W\x86?\xed/\x7f\xafZ\xeb\xa9%\n\x92\x83\xda\xff\x00\xf0L\xeaG\x9a0\xa8\xba\xa5\xf8i\xfa\x18&gt;\x16\xfd\xa1/m\xcaC\xe2\xbd).#\xe8nl~V\xfa\x94\'\x07\xf0"\xbd\x9b\xc2~?\xf0\xcf\x8a\xc2.\x8d\xaa\xc1-\xc3\x0c\xfd\x99\xcf\x97(\xff\x00\x80\x1eO\xe1\x9a\xf8\xf3\xc5\xbe\x14\xd5\xfc\'}\xf6}Ip\x8d\x9f*Q\x96\x8eQ\xea\xa7\xd7\xd8\xf3\\\xf2\xc8\xf1\xca\x92\xa11\xc8\x87r\xba\x12\x08&gt;\xa0\xf6\xa8\x95(\xcbX\x99)\xb5\xa3?Ch\xaf\x91|%\xf1\xd3\xc4\xfa\x1d\xa7\xd9\xaf|\x9db%\x18F\xba$H\xbf\xf01\xcb\x0f\xaeO\xbd\x15\x93\xa3"\xf9\xd1\xe7Z\xe6\xb1\xa8k\xda\x94\xda\x86\xafu%\xd5\xe4\xc7-$\x87\xa0\xf4\x03\xa0\x1e\x80qZ\xde\x11\xf0n\xb7\xe2\x86v\xd2-\x94\xc1\x1bl{\x89[lh}3\xdc\xfb\x0c\xd7,\xa1\xa5\x8b(\t9\xc0\x03\xb9\xf4\xaf\xb1&lt;\x07\xa2\x0f\x0e\xf8?J\xd3v\x01$p\x86\x9b\x1d\xe4o\x99\x8f\xe6q\xf8V\xf3\x97"\xd0\xce+\x9bs\x9a\xf0\x07\xc3\x9d\'\xc3e.o\\j\x1a\xa8\xe4M"\xe1"?\xec)\xef\xfe\xd1\xe7\xe9^\x82\xd1\x93\xca\x9c\xd3\x8a\xc6\xff\x00xR\x08\x9d9\x89\xf2=\rs6\xde\xac\xd1+\x19^#\xd3\x97W\xd05-:@7\\@\xe8\xa0\xff\x00{\x1c~\xb8\xaf\x91,\xf4-GU\xd4\x9a\xdfN\xb4y\xa5\x07\x12vX\xc8\xe3,OJ\xfb@\xb0l\t\xd0\xa9\xfe\xf0\xaa6~\x1f\xd3\xad\x1af\xb4\xb6\x89D\xf2\x19\xa4\xda&gt;\xf3\x9e\xa6\xb4\xa7S\x915\xdc$\xb9\x8f\x01_\x85\x12\xae\x99\x03\xff\x00h\x16\xbe\xdd\x96\x11\xa8\x08\xb9\xf4\'\x93\x8f^*-N/\x12xB\x12\xfa\xcc&amp;\xf7M\x8c\x8c\\n\x05\x90v\xc9\x19\xe3\xeb\xf9\xd7\xd1\xad\xa7D\xc8Wb\x85=\x80\xc5g\xeaZ$Z\x86\x9dq\xa7\xdf\x0f2\xdax\xda&amp;$s\xb4\x8c\x11S.Y\xe9 \x8b\x945\x89\xe6\xde\x1c\xd6\xacu\xdd\x1cKg2\xbb!\xc4\x89\x91\xb9&gt;\xa2\xac\x1bF-\x94\x8f\x8f\\W\x87\xcf4\xfe\x06\xd4\xf5=*H\x08\xd5mn\x88\x86\xf5[n\x14\x0e\x84t`\xc3\x07\x9a\xf6\xaf\x01\xf8\xbe\xd3\xc4:\x19\x96TH/ \xf9g\x88\x9e\x14\xf6`\x7f\xbak\x86\xbe\x1d\xd3\xd5lwQ\xaf\xcf\xa3\xdc\xd2\x82$\x86\xdev\x94\xaa\x84RX\x93\x80&gt;\xa6\xb8-S\xe25\x8e\x9c\xcd\x16\x93l\xb7\xd7\x198\x96\\\x88\x94\xfd:\xb7\xe8++\xc5\x9a\xec\x9e+\xd5&amp;\xb2\xb3\xbd\x86\xcbF\x80\xe6Y\xa6\x90"\xbf\xbe:\xb7\xb0\x1fZ\xe7\xac\xfc8u\xcd^+\x1f\x0b\x9b\x9b\xe3\x8f\xde\xcb,B4C\x9e\xb9\xfe\xef\xd7\x9f@k\xa2\x86\x11[\x9af5\xb1/\xe1\x816\xb7\xac\xdd\xf8\xaa\xcaI\xf5mFI\xf5Xe\x1eE\xb1O\x90\xc6F6\xc4\xaa0\x0ez\x8e\xe0U{o\x86\xde+1\xc5q\x0e\x8f=\xcd\xb4\xe8\xb2\xa4\x90\x10\xc0\xa9\x19\xe9\x9c\x83\xed\x8a\xf7\xdf\x87\xff\x00\r,|8\xa2\xe6`.\xf5\x12&gt;i\x9cp\xbe\xca;\x0f\xf3\xed^\x88\x10"\x85P\x00\x03\x18\x03\xa5u:\x8a/C\x93\x96\xfb\x9e\x05\xf0g\xc2\xda\xb5\x97\x8dZ\xebS\xd3\xae\xac\xe2\x82\xdd\xc8i\xe3*\x0b\x1c(\x03?S\xf9W\xbb\xfb\'\xe7R\xec\x07\xaeO\xd4\xd0GaY\xd4\x9b\xa977\xd4\xd6\xfe\xecc\xd9X\xca\xd7tK-wK\x9fO\xd4\xa1\x12\xc1(\xe7\x9c\x15=\x99Ob+\xe5\x8f\x1ex2\xfb\xc1\xda\xb9\xb6\xba\x0f5\xb4\x99k{\x85\xfb\xb2\xaf\xf4a\xdcW\xd7\xa0`{\xd6?\x8b&lt;?g\xe2m\x12}7P_\x92A\x94\x90\x0f\x9a\'\xec\xc3\xdc~\xa3\x8a)\xcf\x95\x91%s\xe3R\t\xfe\x1e~\xb4V\xbf\x88\xf4k\x9f\x0f\xeb7:n\xa2\xbbf\x81\xb6\xe4ta\xd9\x87\xb1\x1c\xd1]fv/|.\xd3#\xd4\xbe#iv\x13\xf3o\xe7\xf9\xcc\xbe\xa1\x01l~8\x15\xf6\x02\x9d\xdc\x9e\xb4Q\\\xd5~"\xe1\xb0\xbeX=)\x0cdt4QY\x14\x00\x91\xd7\x06\x81\x1a\x13\x95\xca\x1f\xf6h\xa2\x98\x0fc$c-\xb5\x97\xf24\xe8\x99%\x1c\x02&gt;\xb4Q@\x1f:\xfe\xd2\xba\r\xbc&gt;#\xb1\xd4T\x00o\xe0"@:\xeeB\x06\xef\xc8\x8f\xca\xbc\x87M\xb9\xb9\xb3{\xa8\xa2\x99\x93zy2\x158\xde\x87\xb1\xfc\xa8\xa2\xba\xa2\xaf\x15s+\xb4\xf4;\x1f\x87^\x08\x7f\x18\xea\x0e\x86\xe9-\xadm\xf9\x94\xe3.G\xa2\x8e\x9f\x9d}5\xe1_\x0ci\xbe\x1d\xd3R\xd3L\x81c\x8f\xab\x1e\xac\xe7\xd5\x8fsE\x15\x9df\xefa\xc0\xdc*\x00\xa4\xc5\x14V\x06\x83\x1a\x90\n(\xa0b\x1aB(\xa2\x90\x1e3\xfbC\xf8uu\r;M\xd4\xed\xd9b\xbb\x8eo\xb33\x1f\xe3B\xac\xc3?B\xa7\xf3\xa2\x8a+X\xc9\xd8\x96\x91\xff\xd9'</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67216435185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>786600</v>
+        <v>787598</v>
       </c>
       <c r="B13" t="n">
-        <v>2020</v>
+        <v>5926</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Juan Pablo Vojvoda</t>
+          <t>Renato Portaluppi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe1\x00\xbcExif\x00\x00II*\x00\x08\x00\x00\x00\x06\x00\x12\x01\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x1a\x01\x05\x00\x01\x00\x00\x00V\x00\x00\x00\x1b\x01\x05\x00\x01\x00\x00\x00^\x00\x00\x00(\x01\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x13\x02\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00i\x87\x04\x00\x01\x00\x00\x00f\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00\x06\x00\x00\x90\x07\x00\x04\x00\x00\x000210\x01\x91\x07\x00\x04\x00\x00\x00\x01\x02\x03\x00\x00\xa0\x07\x00\x04\x00\x00\x000100\x01\xa0\x03\x00\x01\x00\x00\x00\xff\xff\x00\x00\x02\xa0\x04\x00\x01\x00\x00\x00\x96\x00\x00\x00\x03\xa0\x04\x00\x01\x00\x00\x00\x96\x00\x00\x00\x00\x00\x00\x00\xff\xe1\r\xf2http://ns.adobe.com/xap/1.0/\x00&lt;?xpacket begin=\'\xef\xbb\xbf\' id=\'W5M0MpCehiHzreSzNTczkc9d\'?&gt;\n&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n&lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n  &lt;Attrib:Ads&gt;\n   &lt;rdf:Seq&gt;\n    &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n     &lt;Attrib:Created&gt;2022-04-27&lt;/Attrib:Created&gt;\n     &lt;Attrib:ExtId&gt;b58b6222-e4df-4694-b7a5-ca98bc6db1cd&lt;/Attrib:ExtId&gt;\n     &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n     &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n    &lt;/rdf:li&gt;\n   &lt;/rdf:Seq&gt;\n  &lt;/Attrib:Ads&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n  &lt;dc:title&gt;\n   &lt;rdf:Alt&gt;\n    &lt;rdf:li xml:lang=\'x-default\'&gt;jogadores sofa&lt;/rdf:li&gt;\n   &lt;/rdf:Alt&gt;\n  &lt;/dc:title&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n  &lt;pdf:Author&gt;Guilherme Mirra&lt;/pdf:Author&gt;\n &lt;/rdf:Description&gt;\n\n &lt;rdf:Description rdf:about=\'\'\n  xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n  &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n &lt;/rdf:Description&gt;\n&lt;/rdf:RDF&gt;\n&lt;/x:xmpmeta&gt;\n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n                                                                                                    \n&lt;?xpacket end=\'w\'?&gt;\xff\xdb\x00C\x00\x06\x04\x05\x06\x05\x04\x06\x06\x05\x06\x07\x07\x06\x08\n\x10\n\n\t\t\n\x14\x0e\x0f\x0c\x10\x17\x14\x18\x18\x17\x14\x16\x16\x1a\x1d%\x1f\x1a\x1b#\x1c\x16\x16 , #&amp;\')*)\x19\x1f-0-(0%()(\xff\xdb\x00C\x01\x07\x07\x07\n\x08\n\x13\n\n\x13(\x1a\x16\x1a((((((((((((((((((((((((((((((((((((((((((((((((((\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfa\xa6\x8a(\xa0\x02\x8a(\xa0\x02\x8a+\x0b\xc7\x1e$\xb7\xf0\x97\x85\xefu\xab\xc8\xdeX\xad\x94\x1d\x89\xd5\x89 \x01\x9e\xdc\x9a\x00\xbd\xadk\x1a~\x89b\xf7\x9a\xad\xdcV\xb6\xeb\xd5\xe48\xc9\xf4\x03\xa9&gt;\xc2\xbc\xb3\xc5?\x1d4\xbb8e_\ri\xd7Z\xbc\xea\x0e\x1f\x1eT@\xfa\xe4\xf2\x7f\x01^\x11\xe2\x1f\x17\xeb?\x10u\xc7\x96\xf9\xa4H\x04\x84\xc7\x18\xc8H\xe3\xec\xaa=\xfb\x9e\xa6\xb2\xe5\xb6\xbayp\xb1\x11\x12\x13\x85&lt;.\x01\xfa\x1a\x97+\x17\x18\\\xeau\xaf\x8f\x1e;y~\xf5\xb6\x9c\xa4\xeeUK`G\xfb\xa4\xb6jo\x0f~\xd1^)\xd3\xa7U\xd6!\xb3\xd4\xe1nNS\xca\x7f\xc1\x97\x8f\xd2\xb8\xeb\xc8^\xe6\xcdc\xbb\x0e\xa0\x1c\xee\xda\x1c{\n\xcc\xb9\x16\xd1\xb7\xd9\xcc)1\x03\xbb\xaa\x91\xed\xc0\xe3\xf3\xa1J\xfb\r\xc2\xdb\x9fY|:\xf8\xcb\xa1\xf8\xbeqi&lt;o\xa5\xdf1\xc4i;\x02\x92{\x06\xf5\xf65\xea\x03\x9a\xfc\xf2\x1al\xc5\x83\xd8\xc8b\xc9\xe6\'9\x1cz\x1f\xf1\xafy\xf8\x1f\xf1F\xf3L\x9e\x1f\x0f\xf8\xb2\xe4\xc9j@Kk\x86\xf9\x8cd\x9e\x15\x9b\xa9^z\xf6\xa7rZ&gt;\x94\xa2\x81\xcd\x14\xc9\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n(\xa2\x80\n\xf0\x1f\xda\x1f\xc4?n\xd4 \xf0\xf5\xac\x86H\xad\xd4Mq\x08\xe0&lt;\xa4\x8f,\x1f`2\xdf\x88\xf4\xaf~\xaf\x915i\x05\xff\x00\x8d\xbcC\x7f1c+\xde\xca\x00=\xb6\xb1Q\xfa\x01QR\\\xb1\xb9\xa5(\xf3J\xc4:&amp;\x9c\xf0\x9c\xbb\x06c\xc1\xc7\xf4\xae\x86\xdbN@\x80\x04\xf7\xe9U\xb4\xf023\xc7\xf3\xae\x8e\xdaE\xd829\xf7\xaf.Srz\xb3\xd8\x8c#\x05\xa23$\xd1`\x9d@t\x19\xc7\x04qX\xf7\xbe\x0b\xb7\x96O51\x1c\x80cr\xae3\xf5\xf5\xae\xd0:\x9c\xe3n=s\xd2\xa2\x9eP\x01 \x12(Rq\xd9\x89\xc5Kty\xee\xa3\xe1\x81\xe4\xed,\x0b\x0e\xa5&gt;\\\xd7#y\xa3If\x03\xa0-\xb4\x93\xb5\x9b\xa1\xf5\x07\xd2\xbd^\xeeM\xc3\xda\xb05(\x92D*Td\x8cV\x90\xad$\xc8\xa9B-l{W\xec\xfd\xe2\xf7\xf1?\x83\x9a\xde\xf2\x7f:\xff\x00M\x93\xc8w\'\x97O\xe0o\xcb#\xf0\xafP\xaf\x96\x7ff\xbb\xd3\xa4|I\xbf\xd2\xd80\x8bQ\xb6m\xa0\xf4\xdf\x19\xdd\xfc\x8bW\xd4\xd5\xe9\'us\xc8\x92\xb3\xb0QE\x14\xc4\x14QE\x00\x14QE\x00\x14QE\x00\x14QE\x00\x15\xf2%\xf4F/\x10j\x83\x9f\xf8\xfa\x97\xbf\xfd4j\xfa\xee\xbeT\xf1\xbc\x7f`\xf1w\x89\x15F\xe7\x8a\xe9\xdc)\xee\x0f\xcc?\x98\xac\xaa\xab\xc4\xda\x83\xb4\x87i\x89\x9f\x99\xb2\x10\x1c\x82\x07z\xe8\xadR&amp;\x18\xdd\x9f\xf8\x10\xaf\x17\xd4n\xb5feO\xb5\x18\xdaL\xb2\xa2\xf3\xc7\xd3\xd2\xa9\xe83]\xb5\xd1x\xb5\t.Y0H\x0cW\x15\xc7\xec\x15\xafs\xbf\xdb\xbb\xda\xc7\xd0\x1fe\x03\x9e\xc7\xa5Gv\x96\xf6\xd1&lt;\xb7\x12*\x81\xdc\x9c\xe2\xb1&lt;#\xaa\xbd\xfc\x08\x92\x1f\xb8zV_\x8d\xaf&amp;C\xe4B2\xeep\x01\x19\xac\x92W\xb1\xa5\xe5a/\xbca\xa1y\xcd\x00\xbaFe\xe0\x8d\xb8\xac\x87\xd5\xac\xaff)k(\xc1\xe4n\xe2\xb8\xaf\x12\xd9\x1d*;k\x8b\xa8\xf7\x9b\x95g\x8c\xb0\x03\x858\xcfN\xfe\x95~\xc42O\xf6+\x98\xc0-\x18\x99\x1c\x0cd\x11\xfa\x1a\xe8t\xa2\x95\xcc\x15Y7\xcbs\xb5\xf01kO\x8a\xfe\x19\x9f$o\xb9\xf2\xc8\xf6e+\xfdk\xebz\xf9\x1b\xc3\r\x8f\x18xVw*\x02\xddDK\x93\x800\xdc\x92M}M\xa5k\xfa^\xadsqo\xa6\xdfCq5\xb9\xfd\xe2\xa1\xce=\xfd\xc7\xb8\xae\x9arV\xb1\xc7V.\xf74\xe8\xa2\x8a\xd4\xc4(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00\xa5\xae]\xb6\x9f\xa2\xdf\xdeF\x03=\xbc\x12J\xa0\xf4%T\x91\xfc\xab\xe5\xbdv\xf2O\x10kwZ\xbb\xaa+^\xdb\x03 \x8c\x10\x0b*\x81\x9c\x1e\x9c\x0e\x95\xf5.\xb7\x01\xba\xd1\xaf\xed\xd7\x1b\xa5\x82H\xc6zd\xa9\x15\xf2\xd7\x93%\xab$l\xa3\xcb1\xedc\xe8{\x0f\xd2\xb9\xab\xc9\xa6\x91\xd7\x86\x8aqo\xa9\xcfC\xa6\xb4WOx\xca\xcf\xe6Fb`{)\xea=EK\xa0\xe9\x16zR]\x1bXg\x7f8lr\xe7\xa2\x83\x90\xa3#\xd6\xbb+HVDP\x9f\x8e*\xdb[\xa4P\xb1\xd83\x83\xc9\xae?k$\xacw\xfb(\xefc/\xc2\xd0\xf9\x12Kp\xcb\xb1d\'\x81\xd8Su\xf8\x9aK\xb1,\\\xbac\xa8\xea\r^\xd2~yUc\xc1@9\xf4\xebL\xd6sot$?q\x86*5\xb9g=yi5\xd4J\x97\x16\xf0\xc8\xaar\xaa\xe9\x9d\xa7\xdb9\xc5$Z?/3\xb030\xc6H\xe7\xf3\xae\xb6\xdc,\xb6\x88\xea\x17\x1bx5V\xf0\x84\x8b\x8f\xa9\xa1\xcd\xbd\x03\x95\x1c\xecp"-\xabH\x01X\xa4!\x81\xaf@\xf8"]|us#\x92ZkG\x1fA\xb9H\xfeU\xc11Y\'X\x9b\x94bI\xf6\xafS\xf8)\x04G\xc4W\xb2\xa1.\xc9k\x82\xd8\xc0\x1b\x98t\xfc\xab\xa2\x9f\xc7\x13\x9a\xa6\x94\xe4{5\x14Q^\x81\xe5\x85\x14Q@\x05\x14Q@\x05\x14Q@\x05\x14Q@\x01\xe4s_4x\xd6\xc9\xb4\xedn\xfe\xd9\x98\x95\x86FUR?\x84|\xca\x7f#_K\xd7;\xe2\x1f\x07\xe8\xfa\xed\xc1\xb9\xbe\xb5\xdds\xb0\xa6\xe1#.\xee8\xc8\x07\x9cVUi\xf3\xa5cj5}\x9bw\xeax.\x97p\x8a\x98S\xc1\xabw\x92\xf9\xb6\xd2"\xb1\x07a\xe75\x83b\x92C~\xd0\x13\x82\xa4\xab\x0fB8\xfe\x94Ks 8\xdcIo\xe1^\xf5\xe7\xba~\xf1\xe9\xc6\xa7\xbbq\xf6\x1a\xe7\xd9\xe5e\x92\xd1\xa3\x8f\x18\xde\x06\xe1\xf8\xe3\xa5;X\xd7M\xe3!\x8a\r\xf8\x00\x1c\xa9\x00\x7f\xf5\xfd\x85%\x9cP\x82\xd9\x9a\x08\xe4\xea\x03I\x83\xf8\xf6\xa7\xca\x11b\xda\xd2\xdby\x99\xe0\x17\x00\x9fZ\xd3\x966#\x9aw\xbd\x8bZt\x8e4\xe5s\x802~_\xee\x8a\xcf\xbf\x96L\x9f\x98l\xeb\xc1\xedP$\xec\x93\x14R\xdbs\xf2\xe0\xe7"\x9fr\x1d\xad\xd7\xa0!\xc8\xe9\xd0c8\xac\xdc,\xcbU.\x88\xf4\x9b\x1b\xcdSQh\xec-\xa7\xb9u\\\xb2\xc5\x19|/L\x90;s\x8a\xf7\xbf\x85^\x1d\xba\xd2,\xee\xef5(L7We@\x89\xb1\x94E\x07\x19\xc7BI&lt;}+\x95\xfd\x9fl\xf3&gt;\xb5z{yp\x8f\xd5\x8f\xf4\xafe\xae\xeaT\xd2\xb4\x8f&gt;\xb5V\xef\x00\xa2\x8a+s\x98(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00(\xa2\x8a\x00\xf9\xaf\xc7V-\xa2|A\xd4\x93\x81\x0c\x92}\xa6?L??\xcf5\x93{\xa6A{\x16~`\xae\x0e6\xb1\x18\xfab\xbb\x7f\x8f\xf6\xdfg\xd7t\xdb\xfd\xbf\xba\x92\xdd\xa3\x93?\xec\xb7_\xfcxW\r\xa5\xdd\x07_-\x8f\xdd\xe3&gt;\xb5\xc3UZN\xc7\xa3B^\xea\xb9\x8b\x07\x85\xec#\x99\x9a]B\xe22\x0e\n\xc8\xfc\x0f\xce\xa5\x7f\r\xe9h\xa4\x1b\xf9\xa5 \xe7\x0b7\xf8WT\xda]\xbd\xdb\xaf\x99\xf3\x126\x83\x9c\x1f\xa1\xa6\r\x12\xd6\xd1\xd6X\xd4\xee^r\xd8\xac\xf9\xdd\x8e\xaeg\xe4cXh\x96\x96)\xba(\xff\x00x\xdd\x19\x8eXS\xae]v\x08\xc1\x04.r}\xcd]\xbf\x95 fg\x90d\x0c\x8ek\x02y\xf8\xf2b\x18\x91\xce[\x9f\xba=iF\xefVe6{g\xec\xf7\xce\x89\xab0\x18\x1fj\x03\xf2A^\xaf^_\xf0\x06!\x1f\x86\xaf\xc2\x8c/\xda\xb0?\xef\x81^\xa1^\x85?\x85\x1emUi\xb0\xa2\x8a*\xcc\xc2\x8a(\xa0\x02\x8a(\xa0\x02\x8a(\xa0\x02\x8a(\xa0\x02\xb1|a\xe2m7\xc2:\x05\xc6\xaf\xacH\xe9k\x0e\x06\x11w;\xb18\n\xa3\xb95\xb0\xee\xb1\xa9g`\xaa:\x92p+\xe4\x8f\xda/\xc6\xef\xe2?\x14&gt;\x8fe0m\'Lb\xa3a\xc8\x96l|\xcd\x9e\xf8\xfb\xa3\xf1\xf5\xaa\x84y\x9d\x84\xdd\x8e\xa3\xc6_\x13\xb4/\x88F\xd2\xdfE\xb7\xbdCg\xb9\xe4k\x98\xd5C+``a\x8f\xa5q\x12G.\x8fr&amp;@\xefd\xc7\x9c\x1c\x94\x1e\x9fJ\xce\xf0\xe6\x9baet\xb7Zl7\x10E&lt;{\x02\xcf/\x98\xcd\x8c\x1c\xf4\x18\xae\xceH\x96k\x17\x04|\xd8\xae\n\xd2J\xa3q\xd8\xf4h\xc5\xfb4\x99V\xdb_\xb4H\x95\xe0\x94\x11\x9e\xfdEG7\x88c\xcb4\xb3\x05L`\x02\xdc\n\xabk\xa6i\x97w\x00\xdd[F%=J\xe5I?\x81\x15\xa3\xff\x00\x08\xee\x8d\x03\x87kH\xc9\x1c\xfc\xe4\xbf\xf3\xa8\xbc{\x17iw9\x8b\xfdY\xaf\xe4\tf&lt;\xc5\x04\x92\xf8\xe3\xff\x00\xafZ\x9aN\x9cV&amp;y\x0ednr\xd5j\xee8\x8c\xa8\xb1\xc6\x88\xa3\x80\x14\x7f*\xd80yV\xeaH\xc7\xd7\xe9\xe9\xe9JR\xba\xd0\xa8G[\xb3G\xc0?\x13-|\x1b\xad\xc1\xa1\xea\xd6\xdb4\xcb\xe72\x1b\xed\xc7\xf7/\xc2\x80F&gt;\xef\x03\'\xb6s_FF\xeb"+\xa3\x06F\x19\x04\x1c\x82=k\xe2\xbf\x1b@\xb2i\xc4\x9f\xbf\x19\xde\t\xfd\x7f\x9dn|)\xf8\xd3\x7f\xe1;\x11\xa4\xeav\xed\xa9\xe9\xf1\xff\x00\xa8\x1ef\xd9!\x1f\xdd\x04\xe4\x15\xf4\x07\xa5w\xe1\xa2\xeaAr\xeey\xf8\x9fv\xa6\xbdO\xaeh\xaf2\xf0\xe7\xc6\xdf\x07\xea\xf3\xad\xbd\xc5\xd4\xda]\xc1\xe0\x0b\xd4\xd8\x84\xff\x00\xbe\t_\xcc\x8a\xf4\x9by\xe2\xb9\x85&amp;\xb7\x95%\x85\xc6U\xd1\x83+\x0fPG\x06\xad\xa6\x8c\x9a\xb3\xb3$\xa2\x8a)\x00QE\x14\x00QX^+\xf1f\x8b\xe1K!s\xae\xdf\xc5l\xad\x9d\x88~g\x90\xfa*\x8eM|\xf3\xe3\xff\x00\x8f\x1a\xae\xab\xe6\xda\xf8Z6\xd2\xec\x8f\xcan[\x06\xe1\xc7\xb7d\xfc2}\xc5\\`\xe5\xb0\x9c\x92=\xfb\xc5\xfe8\xf0\xf7\x84\xa1\xdd\xad\xea1C)\x19Ku\xf9\xe5\x7f\xa2\x0e\x7f\x13\x81^%\xe2\xbf\x8f\xfa\x9d\xd9x|\'\xa5\x8bX\xfa\x0b\x9b\xa1\xbd\xfe\xa1G\xca?\x12k\xc4\x1e\xe2k\x8b\x87\x9egi\xaed9i$&amp;Gc\xeaX\xd7\xa1\xf8_\xe1F\xbd\xad,W\x1a\xa4\xab\xa6\xd9\xbe\x08\x12\xe5\xa5+\xea\x13\xa0\xfc\x7f*\xddR\x8c\x15\xe4g\xce\xdb\xd0\xe3\xb5\xaf\x12\xeb\xda\xdc\xcf6\xb7\xaa\xdd^H\x0f\xca\xb2I\x94S\xec\xa3\xe5\x1f\x95sHw\x1eq\x9a\xf6\xdf\x8a\xbf\x0f\xf4\xff\x00\x0fxF\xc6\xe7D\x85\xc8\xb7\x97m\xd4\xaer\xf2\x06\xc6\x18\xfb\x021\xf8\xd7\x88)\xdb!\x1e\x84\x8a\xd6\x16p\xba\xef\xfeC\xab\xf6W\x97\xea\xcfB\xd1\x1aI\xad,\xe6\xfe\x18\xe2U\x1f\xd6\xbbm&lt;\x07\x8c\x0c\n\xe5&gt;\x1f\xdcY\xdc\xe8\xefc4\xd1\xa5\xda91\xa3\x1c\x17S\xceG\xd0\xe4~U\xd5Z\xa9\x86m\x87\xa1\xaf\x0e\xbc\x1c&amp;\xd3=Z\x13R\x82h\xa1qj\xd0\xddJ\xa9\x81\x93\x95\xab*g\xb9@\xb2\xc6\xaa\x07\x05\x89\xebZW\xd6\xb8D\x93i#\xbdB\xaf\x02\xf2\xd9\xfaVF\xa5(\xedT\\\xc6\x08\xdd\xb4\xf1\xc5_\xbd\xe9\xdf\xe9\xe9S\xdbFe\x97\xccU\xc2\xa8\xcei\xff\x00g3\xccW&lt;\nLkC\x82\xf1}\xb1\x97G\xb9nA\x8f\xe6\xc8\xfdk\xcbbo\xf4\xb5\xc7\xf7\xab\xdc\xfc{c\xf6/\t\xdf\xddH\xab\x1cn\x828\xcb\x907\xb9`0\xa3\xbe\x06O\x15\xe1Pd\xcb\xb8\x0e\x875\xea\xe0\x13\x8cn\xfb\x9ef6JR\xb2\xectV\x9a=\xfe\xa7\x0c\xd3i\xf6\xb3\\}\x99\x01\x98D7\x15\\\xe0\x12\xbdH\xab\xbe\x1a\xf1^\xb7\xe1\xc9\xb3\xa1\xea\x97V\x0c\x0eZ%l\xc4\xc7\xdd\x0eG\xe9]O\xc1;\xa7\xb7\xf1\xe41\xa6H\x9e)#`\x0e?\x87?\xcdk\xd5|e\xf0\xcbG\xf16\xf9\xd5E\x8e\xa2G\xfa\xf8W\x86?\xed/\x7f\xafZ\xeb\xa9%\n\x92\x83\xda\xff\x00\xf0L\xeaG\x9a0\xa8\xba\xa5\xf8i\xfa\x18&gt;\x16\xfd\xa1/m\xcaC\xe2\xbd).#\xe8nl~V\xfa\x94\'\x07\xf0"\xbd\x9b\xc2~?\xf0\xcf\x8a\xc2.\x8d\xaa\xc1-\xc3\x0c\xfd\x99\xcf\x97(\xff\x00\x80\x1eO\xe1\x9a\xf8\xf3\xc5\xbe\x14\xd5\xfc\'}\xf6}Ip\x8d\x9f*Q\x96\x8eQ\xea\xa7\xd7\xd8\xf3\\\xf2\xc8\xf1\xca\x92\xa11\xc8\x87r\xba\x12\x08&gt;\xa0\xf6\xa8\x95(\xcbX\x99)\xb5\xa3?Ch\xaf\x91|%\xf1\xd3\xc4\xfa\x1d\xa7\xd9\xaf|\x9db%\x18F\xba$H\xbf\xf01\xcb\x0f\xaeO\xbd\x15\x93\xa3"\xf9\xd1\xe7Z\xe6\xb1\xa8k\xda\x94\xda\x86\xafu%\xd5\xe4\xc7-$\x87\xa0\xf4\x03\xa0\x1e\x80qZ\xde\x11\xf0n\xb7\xe2\x86v\xd2-\x94\xc1\x1bl{\x89[lh}3\xdc\xfb\x0c\xd7,\xa1\xa5\x8b(\t9\xc0\x03\xb9\xf4\xaf\xb1&lt;\x07\xa2\x0f\x0e\xf8?J\xd3v\x01$p\x86\x9b\x1d\xe4o\x99\x8f\xe6q\xf8V\xf3\x97"\xd0\xce+\x9bs\x9a\xf0\x07\xc3\x9d\'\xc3e.o\\j\x1a\xa8\xe4M"\xe1"?\xec)\xef\xfe\xd1\xe7\xe9^\x82\xd1\x93\xca\x9c\xd3\x8a\xc6\xff\x00xR\x08\x9d9\x89\xf2=\rs6\xde\xac\xd1+\x19^#\xd3\x97W\xd05-:@7\\@\xe8\xa0\xff\x00{\x1c~\xb8\xaf\x91,\xf4-GU\xd4\x9a\xdfN\xb4y\xa5\x07\x12vX\xc8\xe3,OJ\xfb@\xb0l\t\xd0\xa9\xfe\xf0\xaa6~\x1f\xd3\xad\x1af\xb4\xb6\x89D\xf2\x19\xa4\xda&gt;\xf3\x9e\xa6\xb4\xa7S\x915\xdc$\xb9\x8f\x01_\x85\x12\xae\x99\x03\xff\x00h\x16\xbe\xdd\x96\x11\xa8\x08\xb9\xf4\'\x93\x8f^*-N/\x12xB\x12\xfa\xcc&amp;\xf7M\x8c\x8c\\n\x05\x90v\xc9\x19\xe3\xeb\xf9\xd7\xd1\xad\xa7D\xc8Wb\x85=\x80\xc5g\xeaZ$Z\x86\x9dq\xa7\xdf\x0f2\xdax\xda&amp;$s\xb4\x8c\x11S.Y\xe9 \x8b\x945\x89\xe6\xde\x1c\xd6\xacu\xdd\x1cKg2\xbb!\xc4\x89\x91\xb9&gt;\xa2\xac\x1bF-\x94\x8f\x8f\\W\x87\xcf4\xfe\x06\xd4\xf5=*H\x08\xd5mn\x88\x86\xf5[n\x14\x0e\x84t`\xc3\x07\x9a\xf6\xaf\x01\xf8\xbe\xd3\xc4:\x19\x96TH/ \xf9g\x88\x9e\x14\xf6`\x7f\xbak\x86\xbe\x1d\xd3\xd5lwQ\xaf\xcf\xa3\xdc\xd2\x82$\x86\xdev\x94\xaa\x84RX\x93\x80&gt;\xa6\xb8-S\xe25\x8e\x9c\xcd\x16\x93l\xb7\xd7\x198\x96\\\x88\x94\xfd:\xb7\xe8++\xc5\x9a\xec\x9e+\xd5&amp;\xb2\xb3\xbd\x86\xcbF\x80\xe6Y\xa6\x90"\xbf\xbe:\xb7\xb0\x1fZ\xe7\xac\xfc8u\xcd^+\x1f\x0b\x9b\x9b\xe3\x8f\xde\xcb,B4C\x9e\xb9\xfe\xef\xd7\x9f@k\xa2\x86\x11[\x9af5\xb1/\xe1\x816\xb7\xac\xdd\xf8\xaa\xcaI\xf5mFI\xf5Xe\x1eE\xb1O\x90\xc6F6\xc4\xaa0\x0ez\x8e\xe0U{o\x86\xde+1\xc5q\x0e\x8f=\xcd\xb4\xe8\xb2\xa4\x90\x10\xc0\xa9\x19\xe9\x9c\x83\xed\x8a\xf7\xdf\x87\xff\x00\r,|8\xa2\xe6`.\xf5\x12&gt;i\x9cp\xbe\xca;\x0f\xf3\xed^\x88\x10"\x85P\x00\x03\x18\x03\xa5u:\x8a/C\x93\x96\xfb\x9e\x05\xf0g\xc2\xda\xb5\x97\x8dZ\xebS\xd3\xae\xac\xe2\x82\xdd\xc8i\xe3*\x0b\x1c(\x03?S\xf9W\xbb\xfb\'\xe7R\xec\x07\xaeO\xd4\xd0GaY\xd4\x9b\xa977\xd4\xd6\xfe\xecc\xd9X\xca\xd7tK-wK\x9fO\xd4\xa1\x12\xc1(\xe7\x9c\x15=\x99Ob+\xe5\x8f\x1ex2\xfb\xc1\xda\xb9\xb6\xba\x0f5\xb4\x99k{\x85\xfb\xb2\xaf\xf4a\xdcW\xd7\xa0`{\xd6?\x8b&lt;?g\xe2m\x12}7P_\x92A\x94\x90\x0f\x9a\'\xec\xc3\xdc~\xa3\x8a)\xcf\x95\x91%s\xe3R\t\xfe\x1e~\xb4V\xbf\x88\xf4k\x9f\x0f\xeb7:n\xa2\xbbf\x81\xb6\xe4ta\xd9\x87\xb1\x1c\xd1]fv/|.\xd3#\xd4\xbe#iv\x13\xf3o\xe7\xf9\xcc\xbe\xa1\x01l~8\x15\xf6\x02\x9d\xdc\x9e\xb4Q\\\xd5~"\xe1\xb0\xbeX=)\x0cdt4QY\x14\x00\x91\xd7\x06\x81\x1a\x13\x95\xca\x1f\xf6h\xa2\x98\x0fc$c-\xb5\x97\xf24\xe8\x99%\x1c\x02&gt;\xb4Q@\x1f:\xfe\xd2\xba\r\xbc&gt;#\xb1\xd4T\x00o\xe0"@:\xeeB\x06\xef\xc8\x8f\xca\xbc\x87M\xb9\xb9\xb3{\xa8\xa2\x99\x93zy2\x158\xde\x87\xb1\xfc\xa8\xa2\xba\xa2\xaf\x15s+\xb4\xf4;\x1f\x87^\x08\x7f\x18\xea\x0e\x86\xe9-\xadm\xf9\x94\xe3.G\xa2\x8e\x9f\x9d}5\xe1_\x0ci\xbe\x1d\xd3R\xd3L\x81c\x8f\xab\x1e\xac\xe7\xd5\x8fsE\x15\x9df\xefa\xc0\xdc*\x00\xa4\xc5\x14V\x06\x83\x1a\x90\n(\xa0b\x1aB(\xa2\x90\x1e3\xfbC\xf8uu\r;M\xd4\xed\xd9b\xbb\x8eo\xb33\x1f\xe3B\xac\xc3?B\xa7\xf3\xa2\x8a+X\xc9\xd8\x96\x91\xff\xd9'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTE\xff\xff\xff\x9c\x9c\x9e\xaf\xae\xb0\xa2\xa1\xa3\x95\x94\x97\xa4\xa3\xa6\x9a\x99\x9c\xb1\xb0\xb2\xad\xac\xad\xa6\xa6\xa8\x9f\x9e\xa2\x95\x95\x99\xa9\xa8\xab\x98\x97\x9b\xff\xfe\xfe\xb4\xb3\xb5\xb6\xb6\xba\x80\\O\xc0\xbf\xc0\x9f\x9c\x9e\x90\x95\x9f\x91\x92\x97{PB\x8c\x8d\x92{WJ\x8b\x92\x9f\xfe\xc0\xab\xba\xb9\xb9\x84aU\xbb\xbb\xbd\x91\x90\x92\xff\xbd\x91\xff\xc3\x98\x82O:\xc7\xc2\xc2{I6\xab\xa9\xac\x95\x99\xa2\xb6\xb6\xb7\xfe\xb7\x88\xb2}u\xb7\x8as\xff\xbf\xa2\xfc\xf9\xf9\xf9\xf4\xf4\xa3\x82ptSG\xfe\xfc\xfc\x8bYI\x8ena\xad\x7fk\xe0\xa7\x8b\xdb\xa1|\xdb\xa3\x88\xd5\xa1\x82\xd1\x9c|pLB\xcb\x97y\x82\x85\x8e\xb5\x97\x81\xa6pk\x8d\x8e\x95\xc5\x91w?I^\xc0\x8e\x7f\xff\xc6\xb5\xda\xa7\x8d\xa7wc\xff\xc6\x9f\xb5\x85n\xb6\x82x\xfa\xbf\x97HRe\xbd\x85y\xe9\xb2\x92\xa3\x8c\x81\xa2\x9f\xa2\xfc\xbc\x8e\x87\x8d\x99\x8e^P\x86UD\xc3\xaa\x9b\xbf\x8eu\xed\xb1\x98pC4\x96te\xe4\xaa\x90\xbe\x8a|\x9a\x9c\xa2\xa5nV\xcb\x99\x84\xd5\xa0\x8a\xe4\xa3w\xc3\x97\x87\xb8\x86z\xaewo\xdf\xaa\x97\xf4\xb7\x9e\x87g[\xf1\xb3\x86\x95f\\e9+\xf2\xea\xe9\x9a{k|^U\xf9\xb8\xa1\xfc\xbb\xa4\xc1\xa1\x89\xc5\x92\x82\xe8\xac\x93\xcf\xb0\x98\xd6\xcc\xc9\xe1\xc4\xb0\xf0\xad\x8b\xdc\xa3\x83\xe0\xd3\xce\xc4\x89zfG@\xff\xca\xa3eOI\x82RC\xca\xaa\x93\xab\x90\x82\xbe\xa4\x94\xdf\xc9\xbd\xff\xc3\xae\xf1\xb5\x93uXP\xa5\x89x}d\\\xdf\x9aq\xf6\xf0\xef\xca\xb1\xa1\xe7\xdd\xdc\x86oe\x97\x80t\xd5\xb5\x9b\x9c\x86|mTLi&gt;2\xd8\xbe\xab\xec\xa2t\xd3\x9a\x84\xba\x9b\x85\xad\x8dy\xf4\xaa}\xd4\xb8\xa3tF6\xad\x85w\xe9\xd7\xd0\xd7\xbf\xb4\x8cvm\xb0\x84pJ+$\xa2xl\xfa\xb4\x94\x90dW\xb7\xa0\x95\xc1\xae\xa6\x9ctg\xb8\x8e~\x9bfR\xf5\xb5\x8dZ2&amp;\\dt\xb2\x91{\xc5\xa5\x8f\xf9\xb2\x85\x7f\x86\x95\xea\xaa\x81\xd9\x9b\x7fy\x7f\x8c\xe6\xac\x8cPXjoZT}jd\xc8\xb8\xb1\xa5\x91\x8a\xee\xa4\x83xK&lt;\xca\x90~\xa0kg\xb4\x9a\x8b\xe9\xc9\xaf\xa8|j\xec\xb5\x9e\xe9\xc0\xa2\xaf\x96\x88\x8c\x8b\x8eO61\xd3\xa5\x96\xba\xa6\x9d\xb4}b\x95oa\x9ck\\\xe5\xaf\x9c\xd6\x8bi\x91|s\xae\x99\x90\xba\x9f\x8e\xa4r]\x96\x98\x9e\xc6\x89n\xcf\xa1\x8e\xde\xb7\x99\xf2\xd7\xbf\xcf\x9f\x83\xf4\xbd\x99\xe2\xa1\x80\xd6\x96u\\E?X&gt;8ta[\xed\xe4\xe3\xc0\x87o\xfd\xb8\x98\xafv[\xe6\xa5\x84\xff\xf5\xec\x81OQ\xeb\xcf\xba\x97`M\x9fp`\xf1\xe1\xda\xb7|p\xff\xc9\xab\xcd\xb6\xa8\xff\xeb\xd2\x88_V\xb9\x82h\xe0\xbf\xa2\xc8\x9b\x8bho\x7f\xfb\xdf\xc3\xd2\xc4\xbf\xd1|_\xff\xce\xad\xc2\xbc\xbb(\x12\x0c\xd0\x93{\x87TV:\x1f\x18\xe5\xb8\xa6\x83}\x7f\xf3\xbd\xa7\xfa\xea\xe0\xbc\xb3\xb1\xf3\xdd\xcevz\x85\x91\x85\x84\xaa\x9e\x9d}qp\xb9YByHJ\xbdiR\x9a\x94\x94\xa1n\xf1\x9a\x00\x00 \x00IDATx\xda\xdc\x96\xefk\x1b\x87\x1d\xc6\xfb\x17hx{\x13B\x88\xf3b\xe0:\xd2\xc5\xa8k\xb7\x86\x03\x93\xcc\xe4E8\xca8gZ\xe8\x12\xa7D+\x96m5\xa7K\x14O\xdc\x9d\x1c\x9f\xe2\xf3\xfd\x10\xe7\x9e"b]b\xf54o \x95\x98!\xe9L\x91\xd2\x1c\x9a\x92b\xe9\x8cg\x15\xc7R\xec\xc6hS\x91R\r\x99\x96\xd0\x81-\x92\xbc\xd8\xbeN\xf7\'\xc8I\xd9#\x90\xe0\xde\xe8s\xcf\xf7\xd7\xf3\xc6\x1b\xff\xbf\xb2\xf4Y\xfa~|PV\xdb\xf0\xf0\x94\xd5f\x05:K\xdf\x8f\x84\xaf\xcf6&lt;\xed\xd9NGj\xb5a\x9b\xd5f\x9b\x9a\xb2\xf5\xbd\xf6\xdaY\xad\xd6G\xd3^\xefv\x1d7\xe5v{gkgkkx\xcaf\x01\xbd&gt;*\xabm\x0b\xb4\xe3\xf5\xce\xce\xfaIB,\xb5\xdb\xb35k_\xdfV\xcd\xf6?Y_\x0f\x94\x15\xa8j5\xaf?"\xfb\xab\xd9\xd5V\xab\nX\x16\xcb\xd6N\rl\xab\xb5gg\xa7\xad\xaf\xd84\xcb\xd4\x14 5\xda\xb3\xdb\xdb\xfemY\xe6d\xc0:Y\x92\xab\xb5=P\xcf\xb6\xbf\xd4\xaa\xca\xfe\xd2lm\xcb\xf6\n\xc1\xfa\x00\xca\xd2h|\x9b\x15\xf1\xa1\xccMT\xcc\xb6Z%\x91"\xc9\x7f\x93\x80\xb2S\xf2\xb7\xfd\xb2L%D\xea^\xab\xed\x1d\xee{e\xfb`Z.\xb5\x1a\xad\x12\x19\xe6\x18\x06E\xe3\xcaj6[\x959&amp;\x12\x0e\x87e9\x025%\x9b\x04E\x84EJ\xcc\xfe\xb1:\xfd\x8a&amp;\xd36\x9d\x05\xaaF)+\xcbL\x06E\x15\xe0JPr$b\xca&amp;\x81su\x99\x14\xe50EQbStS\xf7\xaa\xdf\xde\xf3\x0f[_E\x01k{P\xadv\xbb\x1a\x91\x19#\xc3dB(\x8a\x1a\xf9X\x1a\xe7\xb4\x84\x89\x87e\xb2.\x86\x9bd\x96$\x08\x86k~\xbe\xda$\xd2\xde\xa9\xfd\xee0\xebV\x1b\xa0\x1a;;;\xb3\x9et\x1a\xcfd\xb4&lt;\x86\x19\x98\xa4\xebZ&gt;\xafeL\xbc^\x97q&lt;L\x92PT&amp;\x1f#\x12\t\x82\x0c\xe7\xeb\xfb\xdca6\xb0\xaa\xd5\xd8i\xec\xd4f\xbd\x1e\x98\xc2:S\x04&amp;\x81\x15$L\xd7\x8a\x86\xa1q\xb8\xa1\x15M\xc6dp\xad\x98\xd1LFQ(\xb2*+\xe9i\xeb~\x16\xd0Of\xab{%l\xb4\xc1.\xaf\xb7]\xe5\x18Cb\x05A\x12\x04\x9d\xd6$\x0c\xd7h\xb0\rg4-\x16\x8bi\x19\x8a\xa0(Bl\xdeK(\xdc\xf0\xbe\xd5\xb1o:\x02\xbb\x1cf\xb0\xdah\xd4&lt;\x9e\xefvc\xb8\x1c\xa9g$\xa1\xe0\xe4y\x9e\x8e\x15\x03X\xc64M&amp;\x91\xc7cy\xedy\x1e\xc7\xdd0\x0cC\xf1\xdf_!\xdc\x89\xc8\xd4~\xb5\x95\x17\x0f\x8bD\xb5U*5J\xb1\xe2\xcf\x9e=\x7f\xaeKj!\x93a\x055\x10\xe0SX\xba\x90\x92\x0c%\x1er\xe3\x1c\x17\xe3\xf2\x9ays(\xf1\xe0\xc1\x97\xd4\xea\xaa\xf8\xe5\x80\x8b\x8e\xd8\xf6\x85j*\x8d\xb1\n\xd5\xca6K\xd5&amp;%\xc6\xf2?/Jz\x91\xb5\xf3\x82 \xa8|%\xc5c\x87\x9d/T\x07\xa2\xe0nLb1Z\xc7\xb3\x7fs \xac}N!V\x9bn\xe4\x13\xbb\xe1\xdd\x8f\xf6\xb2n\xb3\x08\xe2&amp;\x1bd\x98H\x10\xa2\x1c\xf9i,\xf6\xddv\x84\xd3P\x8cO\xf1\x85@\x85\xd7\xd5d\x85\x0fQT\xdc&gt;rhd\xc4i\xbf\x9bh\xcaq\xc4\xf5\xc41\xe8v+q\x97\x93\x8f=\xea\xfc8\xf6=*\xba\x90\x13\xe2\xbdfX\xc49\xb2T\xf5{~\x12\xcb\xe7\x8b\x99\x8ca\x84\x04\'\x9f\n\xa4\xb0B0\xc9\xd3\xa602\x99\n\x1c\x0b\x06G\x9c\x08\x91%%\xd5i\x9f\x0b\xa1n\x14\xdeI\xf1w~}Y\xd3#.\x94\xc8fK"c\x18\xb8\xbf\x1a\xd9\xddM\xc7\xf2E:\x03\xe7\'\xc4\xaa\x95dE*\xac\'\xf9\x82\x1aHI\x81\xf1r\xae\xbc&gt;\xe9r\xff\x9a@\xd5\x82\x14\x02\xac8\x12GMj\xb6\xe3e\x1c\x96\x92\xb4\x19.\xb5\xb2\x94\xa9i\xb0\x9e\xf4\xe7\xbbi\x10\x17\x0e\x13\x14x\xa1\xf2)\x81/\xfb\x02\xc9\xa4*U\xca\xb9\\\xae\\\x1e\x1fA\x06\xe3\x06\xa6\x175\xc5\x1dR\xe0D\x85\xe2\\\xad\xd3\xe7yZ\xc5L&amp;\x1cn\x8a\x04\x9e\x87\xbd\xce\xe8\x92\xbe\xeb\xf1x"r\x18\xa6\x93J\xa04\xcccy\xdd\xe7\xab`\xa9u\xf8\t\x06\x83&gt;_\x8a\x160]\x12\xb0\x8c\x12rSD\x02e\x15\xb2\xc39\xc7\xe2ei\x9a\x0e\xb9\xf7\x8eJ\x1e\xd7i\xc6(\xa6c\xbb\xe9\xed\x08pq\x04n\x1a\xb4\x10H\xf9\x00(U)\xfb\xd6\x93\xc9J\xd0\x97\xac\x04$U\xc0\n\x85\x02\xcb\xe0\x0c\x04\n\x02\r%\x1eY:\xdcZlHP\x117!&amp;\x0c\xc90\x0c\x86lDb\xe9m\xbf\xdf\x1f\xa9\xe38\xae\x19j\xca\xe7\xf3\xe5r\xeb\x15_9w;W\x06\xa8J0\xc5J\xa9\x82Z\xc0\x0c\x9ca\x08Ql\x12\x8a\xd2\xd9%a\x99\xa53\x88\xca\x9a\x0c"`\x98N\xe3\xf5j\x89$\x81\xa9\x9e\x8e\xc0\x91\xa9\xa75\xbaPY/\xaf\x03P\x12\xd8r\xdf\x7f\x9f\xf3\xf9\xf8\xca\x88\xa0tM:S)^\x15BT\xf6\x9eH\x88p\x83:\xda\xf0\xd83\x89\x0eI\x18\xc3\xe1\xe9|\x1138\xd8\xf4\x8dl\x04\x14\x83D\x03O${2\xb8\x1e\x1c/\x97\x83\xbe\xdc\xed\xdb\xb9\xdb\xd0f\x01\x95\xb7\xa3\xaeC\x81\x11\xe8\xb3$\x8f\x10d\x13.dG\xed\xeaK\xabj\x81\r\x85\x04=\x16\xd3\xf5g\x92\x01\xa1\x8a\\\rs\x1c\xa7\xb95\xc6\x80d\xc3\xdaG\x0e\x1c\xeb\xea:\xf6\xee\xf8\xb1\xf1\xdb\xc0\xb5&gt;&gt;&gt;Rp9X\xc4\xe5\x9c\x84\xe6\xaf\xb8\x10\xfb\x80\x02}\xaf\x18\xd3\x9d\xeb\xaea\xfd\x05\x86\xb1(-H\xcf\x8a\xff9,I\xa6\x19\x8f\xcf\x0fQJh&gt;\xf3/\xe5\xc2\x9b\xf4\x857\x91\x07O&gt;t8\x1c\xbf\xe9\xea:p`|\xfc\xb7\xeb\xe3\xef\x1e\x9b\x04\xa8^w\xdc\x15\x08\xc0\tp\xb9\\\x88\x0bQ\x12\x0c\xbbm\xed\xdc\xdd)H\xe0\x08\xaa\x14\xf8@\xea\x99\xa4k\x1a\x8b\xcc\xcf\x0f\r\xcd\x9f\xf8h\xe8\xc4\xcd\x0b\'\x86N\x9f\x1a\x18\x18\xf8\xe0\xeb\x0fN}=\xb0\xbc\xfc\xe0\x13\xa7\xb3\xeb\x00\xf0=\xb9{\xeb\x14\x8a"\x81`p}|2\xe0\n\x85\\q7\x15\x8aulG&lt;z\x8eA\xfc\xa4\xcd\x04\xeb\x02\xbf`\xb4\xe8Ph\xbe\xf7\xc4\x89\xd3g\xcf\x9e\xbep\xfa\xa3s\x1fo\xaclll\xac&lt;\xdd\xd3\xca\xc6\xa9\xde9\xc7\x17\xff\xf8p\xf9\xcf\xef/\xdf=u\xeb-(\xa3s\xd2\x97\xf4%\xed\x08\x02\xa7\x1e\x95;\x85e\xf1\x1e\xd6\x05\x163q\x9c\xc35\xe9E%\x18\x98\xeb\x1d\xea\x1f\x1c&lt;~|\xe5\xeag\x9f]}\xba\xb0\xf4\xf0\xe1\xd3\x85w~\xf1\xce_/]z\xbc\xb6\xf0\xf4j\xff7o-\xbf\xff\xd57\xa0\xfb\xbd\xb7\x10\x97\x9d\x7f\xa0\xaa\xa9\xc9\x11\xbb\x03A\x11\x94\xecT\xbe\xb1ztZU\xb1&lt;\x03[Q\x82\xf3r\xcc9w\xf6\xdc\xc7\xbf\xfc\xd5\x95\xc7\x8f\x1f/.&lt;|{amqq\xf1\xd2\x99\x8b\xd7\xce\x9c\x89F/-\xae=\\{\xd8\xbfr\xff\xfe\xc6\xca\xc3\x8d\xfb+\xfd\xbdsv\xa7\x13\xd6\x8a\xc0C\xccA\x91\xf9\x8e\xc5A\xab\'\x8fA\xdc\x83\xa8n2R2\x15\x088.\x9c\xbb\xb2\xb0\xb0\xf6\x87\xee#G\xa2\x8b/u\xf9\xda\xc5Q\xd0\xd8\xd8\xd8\xe8\xe8\xe5\xbd\x07w\xae/\xad,\xad\xc1W\xff\xe0\xddC\x10j\x04\x01\xee\x80\x8bv\xa3\xf1z\xa7\xb0l\x9e"&amp;\x18\xb1&lt;]\xd4\n\x90\xac\x02\xce?\xf5/\xac]_\xec\x01\xaa#\x9b\x00\x11\xbd|\xf1\x1a0\x1d\xdc\xd3\xd8\xc1\xa3\x9b\xd1\xc5O{z\xde\x9bYZ\xba\xbe\xb4\xb4\xb4\xf2\xd5\x17\xff40X\\\xbc@\xa3\x80\x85v\xd0-\xce\xc08\xaeX4\nlF=dw)\xe7\x16\x00f\x0f\xab;\x1a\x8d\x8eF\xf7|\x9a\x988811qr\xe2\xe4\xc1\xa3G\xa3\xdd=G\x8e\xdc\x989\x7f\xfd:\xd8\xb52\xf0\x80\xd5\x84JJ\xb5\xbbP\xc8]\xf3\xfeN-\x08\xeb\xac\\ODp\xbd\x08\xc1\x81F$W\xfc\xef\x8f\x17\xff\x12\x85\x7f~I\x15\x8d\x9e\xd93\n\x88\x0e\x9e\x04\xaa\x93\x13c\xf0h\x8f\xb8\xa7\xe7\xfc\xcc\x8d\x1b\xd7\xdf\x1e\\Fh\xbd\xc0\xf3*\x1bGQWb\xbbS-oy\xe4\x0f\'d\xb3X\x944\x86\xce\xb0t\xe2ww\xa0J\xdd \xb0\xea"|F\xc7^r\xfd\xa0\x83cc\x9b\x9b{\xf5\xed\xee\xb9scff\xe6\xfc\xf1\xde9\x84\x95\x04\x87\xdd\x01\x1d\xefHt.\n\x82]\x04g\xe8\x98\xa4A\x1c\xc5\xa8\xd5k\x9f\xf6t\xbf\x07T\x9b\x9b\x9bc\xa3?\xe8\xbf\xb4\x99\xffO\x13y\x1a\xc7\xef/ \xf1\x97\xfd\xa1!\xe9\xdcO\xf5\xaaUt:U\x02!:\x9du\xb2c&amp;,\xce1\xe4\xfaE\xa67\n+0H[\xac\xd1-#\xe1\xcb\x1dY\xa1\xb6\x04\xfc\x02~K\r\xdbL3\xd9\xf5\xb8*\xb4\x1b\xbbJ\xbbz\xa1\x95i\xefV\xb8&amp;\xac\'\xe4\x80\\\xea\x894\x8d\xfb\x8b1\xf7L\xdd\xfb\x0ff?m\x9a\xc2\xfc0\xaf\xbe\x9f\xf7\xe7\xf9&lt;\xcf3\x150\xddG\xaa\x0e\xb0\xd7\nB \x86\x88\x01\xb8\xcc\x87N\xcc7\x9b\xa0\x93l?p`f\xbe\xb9I\xbb\xd2f\x7f\xdb\xf3u\xe8\x9d\x7f8\xfe\xfdm\xe8\x93{\x12a\x83*\x16\xf8\x1d1\x12F\xe3/T\x1d\x1f\xa9t\x00\n\xb8+F\x02\x01\x8bE\xc0a\xb9\xda\xeb\xcdw\x9a\xfb/\x06\x0f\xec2\x05\xb5\xc4\x02\xb9\xd6\x9f\xfe\xf9\xda58\xa8\x9f\xde\x1fO(`\x1bZ\x8f\x18}\x04\x82\x10\x00\x06P\xf0\xea\xd0UB\xa8;sfzz\x05\xde\xc8\x8a\xde0\rX\xb3R\xfe\xc4\xbc\xa9\xfd\xf8\xc5\xfe\xea}\xcd&amp;S\x93\x86\x95MU\x9b\x1f\x8e\xc1\x1f\x9e\xbe\xbb}\xeb\xeah\x82\xd0\xabj!\x88\xcfG\x10&gt;\xdf\x9a\xba \x84*\x13\xd8^\xa7\xeeDwx6\xe4\x8e\x00U$\x04\xcb\xd1p}\xc2d\xaa\x0b\xee\xfa\xa2\xba\xfd\xe1\xa8\x96u\xe0\x9e\xc9\xa6\x87uO\xd7\xa1 \xf5\xcf\x95\xd7\x00\x0b\xd1#\x00\x05T\xbe\xd7\x95\xb5f\x84\xfc\xf0\xd1\xf3}F\xa3Q\x1f\x0e\x85\xc2\x86Y\xc3t(4\x16\x8ax\x8e8g\xda\x83W\xaa\xf7\xed\n\x8e\x0ck\xda%zo?\xfbrh\xfd\xfe\xed\xfb\xab\xa55\x9f\xbeb-\x02Q\xa9\xd6*Pkk\x90\xb4*Q\xec\x83\xefF\xd0\x11!\x08D\xaf\x07\xcf\x87B\x06\xb2\x0b\x8a\xa0\xba\x0b\xcd\xbb\xaa\x83C/\xb4\x9d\xe0\xbe\xbb\xa5\x8e\xae\xee{G7+\xb7\x83\x18V\xb4\xf2\xbd^{\xad\n\xa4S\xb9\x8c\xbaJ\x0c\x8dF\xf5\xc2\x9aO\xcd\x11\x11U-\xda\xbe\xb5&gt;\xd4\x99\x9d\xa9&gt;03:\xa8-\xd6\x7f\xbf\xbf\xd5\xd4\xe3?;\t\xd6\x82\xad\xaff-U\xad\x8aL\x15\x12U-c\x07|\xd1\xf9`\x7f\x12\x10[\x15_\x1fQ\xa3\x18f3C\xa3\x17\xba;\xdb\xdb;\xcfj\xdb\xc0B\x14\x9b\x86V\xbdg\xbdse\xb8\x1dlD5a\x12\xbe\n\x91\x9a\x13\x8c\xff?\x11\xcf\xa8h\xa0\xd7k5\x90 +\xb8&gt;B+\x99\xee\xb9\x91\x91\xce\xfe`\xa7W\xdb1D\xd5\xf0z\xd3z\x8f\xdf\xeb\x7f\xee#\xf4\x1f\xb1\x08D%\x82\x9a\x01\xa8:\xd4\xcc\xa5\x06\xb1\xa3RG\x80\xff\xd7|\xeaF\x05]#\x90{\t.\xb9\x99\xc5\xaf\xcctvz5n_\x07\xfdC\xeb\xa3^\xef\xea\x7f\x08\x92V\xb1\xc2\x88\xd1\xe5*\x97\xe3\xa9T&lt;\x15\x8f\xc3\x01\x04;Q\xd5\xcb\xe5\x82\xe3\xc8\x05yL!+zA.1 D&lt;\xbb\xb9y!\x18\xfc\xba{X\xe3\xe1\xc8\x1e\xef\xed\xf1\xab\x93^\xffQ\x82\xa6i\xfd4/$R\\*\xc5q\xc9d\x92\xe3\x00,\xde\x07y\xbe\\.\x03%\xfc7\xe5rQ\x0c\tA\x04.x\x11db5\xd1=\x13\xec\x1c\xd7xTY\xb5\x7f\xf8\xdd\xba\x7f\xd2\xbb\xfa\x9aP\xa9d\x0c\xc33I`\xda\xca$\x9d\xdf\x1d;\x92\xe4R}s:]\xb9\x94R9\xb7\x92v.\x85\n\x02#\xf1px\x1ah\x9a \x12Jv\xa4sf\xc9\xaf\xf9\xc8f\xd0?~\xf5g\xff\x9cJ\xa5\xb0\rGpP\xe9\xc2\xd7\'\xfb\xbfs\xde\xad\xffS\xbb\xd3\x9eR\x93V\x89\xc3\xbb\x9c\xce\xcc_\xee6%S\xa5Tb\x8e\x8b\n\xd3j\x18\x11$\xb1y\xc1\xb9T\xf7lR\xfb\xd1\xb7\xbf{}\xb5\xa7\x87\xa4i\x92Z\xea\xb2%\x93\xcf\x82\xa6\x89\xe3SS\xf5SS\xa7\xeet\xa5*\xb9\xb4\x9ci9vlw}}\xfd\xd4\xc5\x91R)Q\xc2\xbb\x1a\x02a\x1aNP\x88b\xd6y\xb7nH\xfb\xb1\xee\xfe\xe1\xf5\xf1\x9e\x9e\x04\xc9\xd3\nv\xc2\x86g\x93_\xde5\xf5O@\xe7j]\xb8yg+~\xf4\xf9\xd1\xa3\xab\xba\xe4\xee\x07\x0f\x1e&lt;\x99\x9a2\xed\xbe\xeb\xcc\x0cu\'m\xcb\x8bQ\x95\x0b!!\x86u\xc1\xb3\xdaOO\xab\xdazF\xe7\xe6\xcad\x98\x14-\xcb6\xae\xc4mm9\x9f9\xaflm\xfd\xae\xf1\xedT&amp;\x0e\xc6*\x97]\xdc\x91\x85\xc6F\xeb\x91\xae-\xe7\xd7\xb0\x13J\\\xe6\xd3\x8d\x86B$\x12\xa1\x89M\xc0z8\xac\xfdl\x1eR\xc4xO\xa2\x8f$I\xea\xd0!.\xcb9[\xae\\\xec\xbfs\xea\x8e\xc9\xfaS\xe3T\x86\xe9\xa8\x1c\x86\x82}\xbe\xa6\xe6:\x00o%\xb9R\xb9/\x9e\xc2kA.\xc0"\xb3\\\xa6\xae\xe9\xd7xd\xb0\xd7\xdb\xbd\x99(\x93\xa4B\xa18\x8e5&lt;\xb9t\xe9\xdc\xa3\x9d\x9d\x1b\x8f.\x7f~\xd3j\x13+\x07$!\xdb\xe6k\x1ao\xd6\xec;w\xf8\x8b\xe6`&amp;\x15g\x18\xac6\xcf\xd3\x80\x85.m\xcd\\\xfd\x15\x9ey\xee\x19\xf4\x8fd\x13:\x92t\x89\x14e\xd9\xa8yt\xee\xc7Go\xde\xbc\xb9\xf1\xe8\xde\'7_\x9e\xa0\xe0,"\x11Cny\xe1\xb7\x7f=\xbd\xb3S\xb9p\xf8\xd42FQr\xc1\r\x99\x8e\x94j\xafOx\xf7Wi\x1e\xc2\x9eR)\x9bM\x10$)R\xd8\xa1\x835\x87\xf7];\xfe\xe3\xce\x9b\x1b\xe7/\xdf{\xfb\xb7\xc7\x8b\xbc\x9e$\x00\xcb\xdd\xf0\xcf\x85\xb7\xf7n\x9c\x06\xae\x9d\xbf_\xba|\xa3\xa6\x96\x11s\x850\xcd\xd3\xd9N\xd3-\xedc\xb8\xe7y(\xc4\xcbY\x85\xa4IE\xae}\xbc`=X\xbf\xfb\xf8\xb5o\xce\x7fU\xfd\xc7\x7f7\xd7/:$\x9e&amp;\x01+b^n\xbdy\xf8\xf2\'\xff\x80\xe8~\xdb\xfe\xf6\xf7\xa7?\xdf\x88\x16x\x9e7\xd0d\x835\xf3B\xf3 \xee-@}\xa2P\n\xc4CD-\r\x1b6\xdc\xe6t\xd6]4MML\xd4[\x97\xa3\xa1H\x05\x8b\x0e\xcd\xe6\x97[\xeb_.\xdc\xfc\xea\xfc\xb7\xd7\xda\x9f,\xd4\xff\xf4\x87\x8d\xbc\x83\x87L/.-\xdbPtR\xe3\x02b\xb0\xf8a\x8c\x17\xe3\x80\xa5$dK\xb4 \x83\xef\xedp\xcc\x9cl\x9d?\xb8\x9cs\x84\xf4\x04a$\x8dP\xbc\xe7\x16\x0f\xbe\xacom\xado\x9e:v\xf2\xb3Xlq#oA\xc3&lt;\x1f\x96\x1c\x8e\xb1\xb1t\xaeM[\xb5^\xa4\x8by\x89\xa2\x14^Q\x14\x91\x92%\x99\x92e\x96\xc3m-\xcb\x9f\x06d\xb7\x14&amp;\xd5\xd6\xccH\xf3\x11\xde|\xa2\xd5jm=\xd6\xe2t\xda8\xb7d\xce\xe7\x0bT\x98\x0f\xf1\x92C\x1aK\x17\x8b\x1a\x0f\xc0\'\xd3\x8f\xb7s\xb2\x18\xe6\xc3"\x89\xc0\xaf\x17e4\xcbb\x81\xda\x86m\x8f\xc8\xf3\xee\xe9\x15(\xbd\x8c$\xdc?\xec\x8e\xc6^\xbd\xb2\xb6\xb6\xd8\xec\x98\xc7&lt;\x00\xa6\x0b+$\x1f\nI\x8e\xb1\x81\xe2\xfb\x0f\x1a?\xc6\x98\\\xfc\x90w\xe4\xdc\xbc\xc4\x8b\x08\xa1\xc2Q,nY\xb2XX\x86\x81f\xd0-\xba\xca\x1d.\xc5\xb8\x12\x8e\x84\xdd\x82=\x16\xeb\xedm\x89\x05\xa2\xd1\x9c\x87\x0f\xf3`G\x1ez~\x87#\xad=\xd6\x8b\xe2\xfb\xf4XAr\xf0\x10/\xc8\xa8J\x98\xcf\xca\x98L1.Ft\xbb\xdd\x92[)C\xfdG\xae\xd0\x11\xb7\x9ba\xd1@\xc0\xb6\x14\x08xP\tL\x15\xa6\xc9_\xb0@\xad\xa2\xb6XU\x80U\x1c+\xb8\xc1!\x14\x84\x11\x16\xadP\x94\xc8\xb8DAp\x01\x17x\x0b\x8aRqz\xda\x00XL\x9c\xe5\x02v\x8e\x95)\xb7*\x15I\x87yuD20\x06?\xad\xed7U\xda\xee\xc4\xf7\xe9\xd9\x9cGr\xc8\x14O)\xf1\x84\x92\xa0\xa8\x84\x18\x17\x19T\x98\x16\xdd\xa2\xa8\xa8X\xd3\xa4\xaa\x16p1.!\x80\xa1\x82(\x92\t\x02\x01\xb1x\x80\x02\xcb\x17\xdfc\xda&gt;\x18\xae\xda\x9b.\x02\x16*\x99\xa5,\x05\x8bQ?d\x08"\xcb\n\x0c\x90\xb8\xc53P\xc13\xb0%f\x81JH\x9dqa\x1e\x96\x12)\x17\x01\x1b\x97\xe7\xc1\xee@5\xf6\xe1\xfd\x88\xc6\xcf_\xf7\xa2\xc5t\xc1#Kf\x14e\x05(\xd6\x19\x01\xb0\xc0Y\xa8\xc0\xb0\x05\xc0\x02g1\xf0\xa6$\xa9 \xb9\x04\xf8\xcab\xac \xb0l6\x9e\xa5d\xd5W\x03\xd14x\xab\xa4u\x11\xd8\xb3\x08X\xacl6c8\xca\xe18\xd4\xea,4\x16pg4\x8f\xbae\n\x90\xa0\xcd\x10\xe4\\\xa1\x00\xa4)\x88"\x8a\xb1,\xcaq\x1c\x8e\x16\xd4i\xa5\xc3\\,\x16?h^4O\xe6\x07\nQTr\x98Q\x0c\xb7\xdbq\x8c\x93\x85x\x9c\x11\x04|{\xdb-\x17\nB\x1c$\x84\xe5\xc9\xcd\x16\xd0\x1c\x07\xf6bQ\x16\xfeNf\xec\x16\xb3\x8a\x95\xf3\x80Z\xdbmZc\r\x96\xf2\x05\x0fZ0\x9bQ\xbb\xdd\x1e\x08\x04p\x96\x85jJ@{7\xa2\xb3X4\n\xac\x01;\x8a\x07\xb6\xcd\x05t{\x1b\x13Rp\t\xb8p\xbb-\xa6b\xa5\xcdfs~ ]\xd2\xbah\xae\xda?\x89\t\xb2\xa7`\x89bv;\x06X\x18\n\x99\x142\xa7\xb5\xd5\x13\r\xc4zc-\xbd\xf0\x11\xfbly;\xea\xe9}\x15\x03c\xc92\x8ab\x98\xddV[\x0b@y\xb3\xd9\x91\x1f\xc8\xfd\xacy\xbdU\xf5/\x81ar\xb9Cf\x8b\xc5\x8e[\x02\x16\x1c\xb6\xa2\x10\x88Y\x1b_\xfd\x8f\x973\x0cm\x1b=\xe3x\xd8\xa7}\xf2\xb0?\x19\xe2\x1c\x9c?\x0c\x0b\xc7N\xa4\xd8\x92E\x8c\x11\x16\x12\xa8\x0c\xda\xe9\xea\x08\xcb\xb1\xd4\x1a76DmJ\xaa\x10\xba\x95\xf9\x9c\\\xd2#Y\xddps\x83c\xccd\x13\x92\x0f\xa1t\x85\xd9\xe0/\xdd\xd9\xe9\x1dg\x92\x11hK\x83K\xd6\xd4\x0c\x87@!m\xdaA\xc7\xb8\xb5\xecy\xd3\xc2\xd8\xe7\x8b\xf6H\x96\x8c\rz\x7f\xfe?\x7f\xbd\xef#\xe5U\xaa[\x9d \xcb\xab\xaa\xdaQ;\xc1`G\xdf\xd0\xd5Nuh\x04\xba\xad\x91\x11\xc0\xaa\xd2\x14`Q&gt;\xdf\xcc\xcc\xd0\xe9\x17\\\x03co/~1\t\x8e\xf7\x91~\x94\xb1\x91\xcbgF\xfc\xfa\x87\xe75M\x8f\x9e[Y)\xedW*\x9b\xc1\xe4\xea\xca\xe0\x87-\xbd\xf3o}\xc3\x8f\xceD(3r4EQ3\x94\x8f\xf2\x8d\xde\xbap\xfa\xf3 \x06^\xbc\xbdx\x06\xb0\xc0\xf1\xfe!\xb0M\x18\x06\xc5\\\'9\xc8o3\x95\xc5\xd5K\xdd\xe4\xe0\xde\xd9\xcd\xee\xca\x9bK\x83\x1d\xbf\x1eT\xab~\xc8\xf2\x99\xcbg\xc2$\x8c\xe6\xd4\x8c\x8fzD\x8d\x8e\xbe5az\xc6\x8b\x8b\xbf\xbb;\xe9\xf3\x0f\xf9\x87\xc2\x80\x06m\x8e\xe4\x84\xd6`\x8d\x91\xfd\xa1\xcaq\xb2\x99\x1c&lt;N\x9e-\x9d}\xffy{\xe3B\xac\x13\x04{\x01\xfc_AQ\x92\xa6g|\xa3&gt;\x8a\xbau\xeb\x82\tU\xf3\xdb/\xce\xdc%I\x1f9\x19\xf6C\x16\x91\x9f\xab\x07\xc1\xa4K\x0e\x93\xaf\x05\xd6\x08\x06\x93FP\r\x06\xf7\xd5G\xcf\x86\x1ej\x1d\xa1\x1a\x0b\xc7\xc2p\x8549\x04\x12\x93\x90Cj\xf4\xd6\xb3\x17\xa7=\xc9\xc6\xe2~{\xf7\xf2\x08I\x02\xd5\x90\x7f\x124#\xfd\xb9\xaaR\x0fj\xdb\xb0\xafJ\xbc\xcb\xa5\x06U\x97\x8b\x17^ol\x0c=\xbcP\xd5\x0e\xb7c\x08k\x88\x84\xae\x01A=z\x04\xd5\xe9?\x07N_\xadgPa\x91\x93\x93\xfep\x98\xf4\x93\x14%k\x8c\xa2*\xdb1t\xb2U\x19\x00S]P&amp;\xeb\x80\xe5\xbf\xf0P\x96\xb6\xb7s\xb1\x9d\x1c\xfa\x1d\x93\xd0A\xf8(\xfa;\xdf\xe8\xe8\xe9\xdf\xb0q_\rO\xe6(r2\xe6\x83\xcc\x90$\x15\x12C\x1a\xcf\xcb1h]\x96\x01\xb1\xcc\xf3JY\x92D9G\xe5\xe0LU$\xf8\xb4JQ4M\x91\x1b4\xa8E\xef&gt;\x1a\x9dYv\x9f\xfe\x99\xf8\x97\xd7!z\x1b~\xfe6\xb4\xbaC\xef\xca2S`b\xb1\xc3\xf8v&lt;~\x18g \x8d\x8a\xa2H\xa2\xa6\xc9\xafsrN#x\x8d\x115\xc0\xa2\x11Z\x98\xa2\x1b[337N=\x89\x03\xee;_\xc7\xe3\xeb\xbe\xeb$\x89\xc4\x12\xe9m\x91\xc0b1Y+\x1f\xc6\xe3eEqA\xa8|\x99a4\x19-1\x91(\x14\n\xd8G\xac\xef|\x93\xf4\xd6\x87\xc6V\xf8\x85\t\xb7F\xd0t\xfd\xbf\x93\xfe+$\xd4\xf0\x14M\xe50"$3X\xb9\\f\xcaJ\x99\xd1\xe0\x8d\x8b\xd7$\xb8\xe4\xd1\x98a\xe60\xc6\x15$\xac\x81\x894\x1d\xa2B\xbe\x99\xf5\xeb\xcb\xcb\xcb&amp;M\xf2\xb4\xf4\xfcm\x1d\x0cOR;;dN\xe6\xb0\xf80V\xc8\xc7\x81\xa6\x0c)\x94t\xc9\xc53\x8cRv\xe5\xf3ke\xe6P\xa9c\xa2x\x80A\'\x0fj\x91\xdf@\xb5l\xde\xd4\xfe\xa7\xd7Q\x06\xc1\xc6d.\xd4*3\x85"\x9ery\x82\xb5Z2\x99\xac}\xdc\x06\xd5\xa2aDRJ\\i\x11\xa1P\x08\x0b\xa1\xa0\xc9_\xf7\xf7\x98\x18\xfdWb\x90\xc3\x1d\xe0\xa20"\xae\x18\xd6@\xd71\xb8\x07\xf1\x1e\x96O\xe1h\xe2\x19\xabQ\xc0Z\xad\x90\xb8\xb5+"*j\xe7\xf7\xa6\xce\xb6\x1eX^\x07*y\x076e\xac\\\xecN\xad.\x9e\x0f,N-\xae&gt;x\xf2\xe4\xf1\xf4T`\nb10\xb5\xfa\xd8\x1a\xf1\xd4[\xa2\xb8\x0b\x8b\x18\xa2\xa8\xf1\x1b\xe6\xce\xb5\xbes}\x87\x92iyg\xe7\x90\xc9\xe7qo\xc0\xbbw\xb6\xb6\xb77\xb5\xb8\x08X\x8f\x1f?x\xf0`u\x158\x17\x9f,\xe0F\x91\r\xd1\xd8.`\x894\xb5~\xc7T\xaa\x9e\xb1\xaf\xc6\x01\x0b\xb2\x12/\x13M\xab\xc3p1Z\\S\x82\xb5\xe4\xde\xfbOq\x0c\x06K\xa63\xd9H\xb1@S\xe2.\x80\x85B;\xebcfBYz\xdc\xdf\x8c\xcb\xb7\xc1-r9\x1f\xc1\x8by\xe8\xa6\xaa\xf1\x98|\xc8\xa0;\xcc(\xd4\x8e\x84\x06\xa2b\xc9ax$4\x11\x07\xc30\x11\xb0\xfa\xcdU\xcbrc}\\\x13C\xe3\xb7\xf3\x9e\xa2"irU\xd0uF\xd3\xe2q\t\xc6D\xd5\xa5\xcb \x9e\x06\xdd\x84\xda\xc4=\x12\x9c\x88\xe2\x01\x07X\xe3WM~\xbe\xc02\xf7\xc3\xf804\xc4\xe4=k\xa0TH\x17\xa0l@\x1d&lt;\x145A\x97K\x10$F\x01\xcc\x10V(z\xca\xc3\xa1\x10Gp\x1cF-\x99l-4\xf1\x8d\x86\xb4\xac\x15\x8c\xbc\xc0h\xa2\xce\x08\xe8\x8f\x16Pm\xed\x1d\xef\x1d\x1f\xd7\xe0\x1d\x14\x12\xba\xae\x03W\x9d\x80\x046\x08\x0e\xbb\x1d\x1a\x1f3\x99\xca\xe2\xfe\xed\x1a\x06\x83]\xbd^(\x8b\xa2\x04\xda\xf0\xf5`\xb3\x86\'\x8eO"i@A\xc8\xeb\xa1\xdd]\x850\x8a\x04\xc6\xb1\x805\xcc\xad\x9b\xfe\x8c\x88\xfb&gt;\x87\x11l\x81\xa8C{\x12p\xf1\xf9|\xd1h\xd6"\xb5\x9bAcs\xdf\xa8\x05\xf3(\x95\xbb\x9c@\x18\xfb\x1f\xb1\xc4r\xe1\xaa\xd9T=\x96e\xc0\xaa\x17\x10W\x01\xc3$\x85W\xf8\xbc\x0b\x19KE\xab\n)\xe49^\x108\xae\xc0\xb2D\x81E\xf4\x07y\xd3\xad\x05\xfd&lt;\'\x16\x10V\x11\x99Y\xc1\x04A\xe8\x08@\x87\n\x1b\x9eG;\x80\x02,\xa2\x00\x0bk\x18\xa0X\xa3&lt;\xf6\x7fP+\x0fr\x81X\xe0hEd$I\xd2\x91\xc5u\x89\x11\x04]\xd0;*\x0f\xc5\xa0\xc4q\x1cAp\xac\x01\x8aq\x8d\xf6\xf6\xac\xe9X\xeee\xe8\x89\xf2\xc5:A\xd4\xc1\\\x0c\xa33\x8a\xa43\x92\xaek\xc0\x06`(4\x06\x03,\x96\xa8\xb3l\x9d\x03\xac\xaf\xfaM\x17\xcb\xfd5\xc6a\x05#\xe5\x89\x14\x970\x85a\xa0\\\x16\x18I8I\xe2\t\x13\xa7K\x82(\x9cX\x8be=u\xec\xa0\xd1\xb8b\xbeZs\xe3\x90\xa0\xa5\xd4&lt;\x1e\x89x\xf2P#K\x0c\\[\x08\xc8\xf4j\xc7\xd5\x01_\xf1.N\x10\xb1z\xb1\x99JE\xd8\x08\xca!w}\xce\xecg\xb5f\x9dk\x80\x85y\x9a\x0e\x07n\xe4\x97\x96\x14\xb0\xb9\x04\xaf\x0e\x1az\xd0\xa5\xa2\xc0\x0b\xf0\tW7"\x91f"A,5 \xae\\\x1b3\x97k`\xee\xfe\xda\xc1.\xc7y"\x8et\x02O\xe5!\\yty\xa1\x06\xd1@\xbdY;\xe9"\x08\x180#x:\xed\x88x\nl\xbb\xdd\x18wN\x98\xea.\xcb\xec\xb5o\xbf&lt;8\x00\xbbG\xf0\xac\x03\xb8&lt;\x9e|\xde\xa3\x06\x8b\xea\xe6f\xb2T*%K\x08\xacX\xac\xa7\x80*\x93N\x18\x04P\xb5\xa3\xc3N\xa7\x99\x8f\x90\xf5\xb8\xe7\x9c\xdf\xa6\x1a\x07\r\x02r\x84\'p\xbc\x99\xba\xe9\xb9i\xa4\x0c\xbc\x99\xe8v\xd3\xdd\xeeq7\x81C\xf6\x0c\x03O$@,\x9c\xad\x9f`\xfd\xc6\xe9\x9cxj^\x1a\x07\x9eN8\xff\x88\xb7\x1b\'XM\xbc\x89\xe3`||\x1e\xc7\xbb\x8e\x84#}\x9c\xedv\xb3]\x1c\xe1\x02\x95\xc3\xe1\xe8\xee\x1b-6\xdan\x97\xbe&lt;\x02.\xb3\xe4\xb2\xf4\x03\xd5\xc4/\xbe\xdf\x04,\xd6\x88$\xa0y \xc2\xe7\x13\xd9D6\x9b=\x86\xa4\xa1m6\x9b\xce\xa6\x1d\x0e\xd0\xaa\xd4lE\xa3l4\x1a=\x97\x02,\xa79rY\xdcc\x13pp\xa7\xed{k\xa3\xddf\xf7\xf7A\x11\x90$\x91\x05\x82L&amp;s/}/\x93Y\xb8\xb7p\x0fvik\xda\n\xe1(\x95\x9a\x00\x15\xad,\xce\xdfw\xda\x9c\x13\xb3\xa6\xb8\xea#\x94\xd3\xf6\xd9\x1f /,\xbb\x9fL8\xacih\x1ft\xc9,L{\x17\x16\x02\xd3\x81\x85\x05/\x10Ng\xecv\xf8\x06\x07*$\xd6\xe0\n\xc2\xb2\xd9N\xfb\xc96KO\xff\xdc\xc4\x11B\x02\xb0\x97?\xf7\x0e\xb6\xdb-\x96\x8d$\x1d I\xda\xee\xf5\xdaA\x9e\xcc\x9e7\x03K\xc0\xbb0=5\x1d\x08d\xec\xd6\xee\'\xaa\xca\xf97\xf3\xf7\x81\xca\xf9\xf2T\x1f\xfe\xb6\x0c\x00\x14\x1c\x15\x1d\x19\xb8l\xbd\xf3\x7f\x8e\xb6\xa3\xd1\xfd\xfdd\tlm\x05\xac\x8c=\x03\xab\x17\x98\x02\xb0\x99\x9a\x82\xbd\xdd\xeaH6[\xfb\xd1J4\xfa|\xf5\xd5\x9f\xde\xd9P\xf4N\x8c\xb9O\xe9\x96\xcd\xc9\xbf/p\xda&gt;\x05\xca\xe2\xd1\xbf\x16\xcfE\xa3\xad\x13.0\x17x\x08\xd0\xecVo 0\xe5E\x11\x807\x99=k7\xb9\xdf\x02\xaaJ\xe5\xdc\x9bW?\xbe\xb3\xf5\x1d\xd9\xe0\xf5rn\xf64\x14\x1b\x98}z\xed\xbfP\'\\\xce\xbe_\x05\xce?\x8fF7[\xd0\x81&amp;\xba\xc8\xf5\t\x87\x1d\xf4\n \x95\xbcv@\\\x80\x9d\xa3\x9b\xdc\x04\xa6J\xe5\xf9\xf9Wo\xfe\xf1\xce\xd6{tt\xd4\xd7\xfb\xcb\xa3\x97\xd7\xc6~\xea\xac\x03\xf7,\x12\xaa\xcf\xf6\xbf\xd1\xf7\xb3\x1f/}\x0eX\x9b\x9b\xcdd\x13\xf2\x08g\x1c\x98\xdf\x8e|\x15\x08x\xadv\x10\xce\xeb\x05g%+\'X\xe7V^\xad|v\xd4\xd7\x07k_o_oo\xaf\xf3\xdaO\x99\x0ea\xe9\x1f\xfbO\'g\x10\x9aH\x96\xc6q\xb5\xb4\xca\xb2tJ\xdb\xaaRIG\xb0K\xbd\x0ct{\x14\xa1\xc8a/\x81\x15\xf5P\x87\xeak\x13\xcf}hB\xbc-M\x939\xc4\xa3\x87!\x10\x16\x82\x1e\x0419\xc8\xde\xcca\x1b\x06\xc6k\xa7\xe7\xb4$\xa7&gt;\xc8B\xc24Bc\xd2\x0b\xd9\xff\xf7\xde+\xa3\xbb\xcd03\xff2\xe5\xabW\xaf\xde\xfb\xbd\xff\xf7\xd5\xab:t\xfb\x86\xf9\xb4\xfd?\\\xdb\xc9\x87#\xf7\xea\xe7\x7f\\_\xbf\xdf\xa3\xfcJe\xb1p\xa6R\xc8\xad\xe7G0\x8b\xfe\'M6\xfb\xb4\xd9\x84Q\xcc\xac\xcf\xb7\x1f"[\x8c\x89kk\xfb\xe6\xf5/\xef^\xfc\xf9U\xeaf\x9bY\xb5\xbd\x9ddbe\xc2\x8a..\xed\x97?_\x9f\xbe\xdfC\x1c?\xf1\xf4J\xa5X\xfc\x00ET\xa9&amp;T\xb9zyz\xd5\xea\xdf\xde\x9e\x87\xc8\xa5-\xce\xc5J7\xcf\x0e\xff\xcc;\x05\xee=\xea\x04\x14I\xc1\x04=\xa1^\x89R\x97\x0f\xdc\nn\xfe\xeb\x97\xd7\xefO^5_\x11\xd4S,\x12\xb4Z\x81\xa9\xca\xa8*\xa0j\x9e^\xd9\xc7\xb7\x17\x0f\xe5-\x8e\xb5U\xde\x12`\xe5/_\x0e\xff\xe0\x7fL\xc7k\xc23=I\x0cI\x01\xa5\x87\x98[\xb4\xb1je\xf1\xc1\x06\xd7_\xde\x9f\xe2\xb5\xe1\xe9\xd3&amp;\xe3JeS\x7fc\x86e\xb3\x95_\x89\xea\xb4rue\xf7?\xdf~\x8cn\xf9R\xf4\xad\xc7\xf2\xb3?\xf0\x9b\x0c/\xbe\x07T\x99\xc6_\xb9\xa4+\x8a\xa0\x12\xc9\x91L\x86\xf7\xbb\x85\xe6{\xac\xf4\xa0b\xcf\x19\xda\x81\x8aE0kY\xadV\xa5y\xd5\xac\x9cV\xec\xfe\xedE&gt;\xc99\xca\xe5-%Tfdev\xa8\xd3B\xf6\xdd\xefK\xa97\xcf\xb6\xd6\x02\x97L*!EO\xfa\xb6\t\x0f\x93\x91\xb3\xcbI\xa7\xb2w\xfdO\xdc\x8aY\x91\xe6\x0c\x0f\x9eY\x96\xd5\xa9Pn]\x9d^\x15\xdc\xe3\xe3\xaf\xa1\xf2\xa3\x14]\x89\xa2C\xffP\xbf\xf9\x1d+\xec\x0b\xba\xf9\xca\xb0\'\xa9\xe8\xba^\xd6\x93\xba\x8ent\xd6I\xb2\xecs\x96\xe3^Q_\\\xee\xc3\x93\x93\xbd\xbd\xbdW)\xeb\xb9\x85\xa5\x9e\xa7;\xf0\xaaU\xab\xd2&lt;A\x14ON[n\xff\xf3Az\x8d\n\xc6\xeb\xa1"\x81\xf1^\xcb:\x1c\xfb\xe57\x7f\xc6\x82A!@\xba\x90B\n\x91We *\x84FRk\xf3\xc1\xd2\x8b\x1d\\T;\x1dz\xf0}\xfa\x84E\x1e+{\xd5\xaaZ\xd9l\x87\x85\x109\x9fJ5\xaf*\xbd\xfe\xe7\x8b;\x85.\xd7\xc5\x1f\xf5\x19\x85B\x8c\x8c\xaa\x10\xd4\xd7\xbf\xf1\xfb\x1a\x08\xdf\x93-\x9f\x883\x91t\xc5\xaf"\xde\xa4b\x0cvwv\x06\xc3\xc8\xe2\xe8\x12\\\x96\x95\xad\xa4R\x1dz\xe4X\xcfaZ\x96\x850\xdb\xe9T&gt;5O*v\xfb\xf8\xe2k\x94f\xe5w\x03$\xcc\x94\xb0\x00\x06\xd3h\x00=\x84P\x1e~{\x85\x05\xd4MRY\xf7IP=\xd6P\x00\xe2\xb5\xf1\x0e4\x1eI\xde\xc3\xd9\x87I\xa1\x00k,\xab:!\xb3\xac\xac\x95J\x81*\xdb\xea\xb4\x9a\x14E\xb7\xdd?&gt;W\x95\x8dY2\xa2h1\xba\x12\xef8\x84P~\xff\x8d%\xe1\xf0\x89\x0e\xf6$\x0f\x9c\xb2\xa9\x90\xef\x9b\xa2r\xaa\x9d\xdd\xb9Q\xf2\xe4\xb3\x0f6\xb0:\xe4\xd9\xa4W\xed\x01\xcb\x9a`\xe3\xf9\x8e\x9b\xb0\xdb?\xfe*E\xc5\xa5\x1bX\x9bbC\xfc?\xd8\x8bw\x87\xcf\x14\xe6h\x88\x92\tR\xc8b\xca+\x9f\x0bu\xfa\xca+`\r\x86\xa5\x927=p\xedN\x8b\xd4\xb1&amp;\xee\x84\xe2\x07\xf3\xfeET\'\xcdN\x17^\xbd\x8d\xaf\xa6Dd\xa1\xbf+dT\x11\x8aF\xe3\xbegq\x96iJ(\xfa\xe5\xf5\xc6O\r\xbc\xb9\xc1\xcd\xe1\x13\x84(\xe6Q\xb1\x0bq"F\xaa(\xc5\x8c\xa0\xda\xd9\x997J\xd0b\x1f\\\x15\xa8e\xb9\xdd\x9e\xd5\xaad[\xb4`5ON\x9bV\xb7\x8f\x9bP\x8a\xaa\xfajr\n\xeb\x14\x10\xc5x\x1c\x1f"*bS\x01\xc68C\x04\xf6\xee\xf1\x9f\x80\xa2\x96\x0f\x1d\xe5\xfbu\xad\x8e\x94P\xd1\xa4l\x17A\xcc\x11\x96v\xbe\xdf\x83_\xe0\xeaL\xbamw\xd2\xa2\x90\xe2\xb0\xd9\xb2\xfbD\xa5I\xc3\xf90\xc2\x8dg\xbd\xa3\x1f\x15f\xc5\xe3*\xb0T*\x14U\xec\xe2da\x94H\x95g\x8f\xb9\xcf\xc7\xf5\xd3\x90f\x10/&gt;\x1e\t\xa3C\xd1\xd2|wgW\x80\r\x98[\xb0\xabk\x93_\xadV\xa1\xd7n\xbbV\xc7B\xb9\xd2\xea \xd9\xfb\xc7\x97\x0bo\xb9;\x1e\xcf\x8dxqm\x86qUU#\xaaJ`T@\x11\x07d\x1fm\xa8S^\xfb\xaf=\xc5\xa2?&lt;\x90\xa8\x10\'\xc1\xd88K\x03\x9e\x08Qu\xb4\xcb4\xde\xd9\x1d\x0fF9\x03~\x19\x19\xb2\x8b\xf2\xabCv\xc1/\x8b\x12m\xe2\xb6\x91W\x17\xe7\xcep0\x1e\xe3\x82\x91\xb76\xcb\xf8\xbd\x1a!\x16\t\x1b\n\x12\xe3R\xe3+\xa9\xc5/\xaf\x0f\xd9k\x0fy\xc3\xc3\xcb\xf6E\n&gt;Wq\xb5\x8f\x16\xb1`\x91\x06\xd0|\x98+\x19\x06\xb0J\xf9\xb7H/\x9b\xdd\x8c\xbdn\x1f~\xc10\x02\x84Yg\x99Fc\xce\xc2&gt;\x9e\xe7\xd4(E\x8a\xe0"u\xc0D"\x11\x89\n\xbc\x18\x81w\xf4\xf1U\x0c\xe1\xdd\xfa\xbb\x00s\x94\x8d/\xec,\xae\xb8\xf8)j\xea\x91Y\x08\xc9p\x84\xad\xc1\xb1\xa0\xcc\xd7\xaa\xcd\x96/\xab\xea\xf6\xfbm|\x13U\xbb\xdf\xfe\xb00r\xb9!\xccB\xe0\xc7\x83F\x0c\x1d\xb1^%\x89P\xeaR\x84I\x8a\xb0\x02\xa3\x89\xb0\x90rT\xe5\xdf\x87\x01\xe1"w\xd37\xd4G\x17\x85x\x8e\xcc\x1a\x8c\x1a\xb9\xc6\x10T\x14C\xc6e\x18?V-\xbbP\xe8X=J\xa8\x89E\xdf]\xb7\xdb=\x9f\x11\xd6\x80\xa6B\x17.%\x95e\x93\x1a\x91$\xa9\x8em\xa5\x88 \\W]R\xbf\x04\xd4o\x89\xe1D\xc4AD\xf5jc\xa2\xca\x95r\x18\x8c\xb8r\x86\xc0J\x80\x8b\xec\xea\x91G\xdd\xc2\xc4\xee\xf5z\xae\xbb\xbf(\x19\xd4t0\xa6\xa8#\x1f\x971\xde\x95t/\xd5c\xb1\xd8#\xd5\xfd#\r\x07\xbcG\xc2\x81{\rk\xd5`\x85\x13\x11\xbe\x96\x96\x03\x040\x87&lt;\xc7`\r\xc2\x12`\xe0zk\x15\x90\xf36\xeb\xa3t\x1f\x00\x00\x03\xc5IDATb\xd7\xc6\xe2\xd5)\xd8\xb6\xdd=\x9a\x12Un8\x1a\x8d\x86\xc39\xdd\xbcK\x8fc\xd5\xefAEd\xb1:\xc4\xd1\x18\x13\x19\x87\xe2=\xea\xee\xe1h\x80\x1f\nGW\xcdT\xd1\x98\xcd\xc13\xf0\xda\xd0\x00G\x8e\xfc"\xacF\xa3\x01\xaa\x19q\x85\x7f\xa55\xc2BN\x01\xa8@Tn\xfb\xa3f\xe4\x0c\xdfY\x86\xb5\xbb\x0cR\xafR0\x9d\x8eq\xd5\xd9\x9f\x18\xf01\xaa\x04%\xd5\xd3\x81\xc7\x8a\x98\x84\x96\x9e\xe4E&lt;n\xa8\x08=\xf6\xb3i\xc6`\xf3/!\xa9\x1a\x18\x0bX\r\xa2\x9a\x81\xf5.\x8b\xe4\xea\xd8]\xa2\xc2\x12V\xb0]\x9eZ\xa0"_\x1b\xe2A\xba\xf4\xd0Q,\r.(\xb6\x82\xe3\x8a\xc5DU:]g\r\x02\xbc\x96\xf2\xd0\xab{,\xf01\xc9\xf3\xb0\xabK+\x0b=\xcfX\xa9d\x98\x845m\x18\xb3\xd9\xcc\xf3J\xc6\xc3\xab\x9e]@\xf0\n\x84U\x98 \xb7\xf6\xcf5\x9a\x05\xf9k\xe4\x86\xf31\xb4\x8b\xf7\x0e\x19\xcb\x82\x9c\x0e\x06\x19\x16\x83[S\x10\x1b\xd5\xa49y\x80Q2\x1e2\xd5\x0bz8\xf0\xa8\x08\x87=\x86\x0cSc^i6\xe3X\xb3\x92\xe1\x00+Ssf\xb3\x92\x07\xe0\xf0O\xcf\x91\xf5d\x93\x8d\xd5\xd5\xeeM\xf6?\xde\x19t\xbb\xc6b%\xcfh\x8c\x96\xcb\xe5\x9cV\xd6A-]\xaf\xcbr\x90\xb8@\xe0\x873\xcd\x15\xe4\x1b7S\x96\x03t&gt;\x18\x8cy\xc2\xc7 ]\x86\xd1\xd2\xc0\xc3\x862K\x03\x94=y\x96\xd04CK\xcc4\xc3t\x1aSG\x03\xd7,a\x98w)\xac]\x85\xab\x02\xcb-\xb8u\xf0W\x19\xa9U\xc2E\x9eGi?\xac\xd5F\x00\xdb\x1d81\x0c(\x07\xb1\xa5e\x01@c\x07\x83\xb2,\xea\x194}\x07\x82\xbe\x18,o4\x135\xe9\x18\xab\xc5\x8c\xbc4\x06\t\x06K\x00\xc3\xc9\x19\xb02\x8e\xa3%4\xd34\x8d\x87\x1f&amp;0\x0bv!\x90\x94ZG\x0f\xe9\x12\xb2\x003\x91g\r\xba\x17k\xe0\xc2\xbd&lt;\x9ek\x1c\x00J\xaf\x8d&amp;\'\xb8\xe45\x05\xc4wpM\xbc\xddF\xd5\xc6)9\xa19\xc4ehf\xd84\x1dma\xd9\x80\xfa\x0f\x85\xb1`\xd9\xee\xfeOwa\xca\x96\x84\xac\x99\xb5\xd1\xa86\xe4`\xf3\xc1\xa0&amp;k "*\xbfsb\xd2\xc2\xe1\xb0\xc6\xfb\xc5\x87\x9a$\x12\x81\x15\xe8j\xe8\x92,k\x88\x16\xab\r\xae\xa0\x05~\xc2\xc0\xa9Y\xc2t2\x198e:\xf0-w\x97\xea\x15H6s\xcb\xaa\xee\x1f|E\x17y\xd3\x0c\x83\nX5\xae\xc5|\t\x7f7\\\xe1L\x84\x15\xd6\x18\x19\x0ee0\x86\x03\xc0Kh\x9b.R\xac\xd0R3d\x83_\xbb\xd1\x8f\xc6:03\x19\x07\x014\xcd\x8c\x93\xcb\xff`1(\x86\x85\x15\xbf\xda=\xcb\xcf\xe0\xa6\xd9X\x82\n\xe2`\xb8b#P\xe8\x0c@\xa6\x99g\\\xa0\x08\x0bF(\xc0\x0041\x98OG\xd8p\x021\xd2\x08\xc4?\xc3\xdb\x85Mr\xcc$,\x87\x1a\xe5\xcc\xbbl\x8f\xee\xc3.V\x8a\x82\xd5\x9b\xb8\xeeY\xde\xccL3N\x8dcM!\x82\nS\x0f\x8c\x80\xa7I8\x9cgbn\t\xf1\x9a|`\x05\xa8\xad\xd3\xe1\x1b\x83:DF\'X\xec\xfd\x06&amp;\xaf\x04\x172\xac\xe189g\xfa\x16\x8fB\x1b\x0fC\xdb\x9e\xd0W\xfbl\n,\xa7\xb6`^\x11`\x86B\xfa8\x14\xf5E\x08\xd3|f\x1d\x8b\x80\xa6\x02k\xady\xd8\x07\x13\xae\xe4\xd1#R\x88s\xf1:r\x9dD\xb9\x0e\xae\x06lh8x\xc1q\xbb6\xde\x9cA\xd7\xab\xba\xee\xe5\xc7)]\xb9X2\xa720J\xb8\x92\x17\xa3\xd0\x07\x04t.\x9f\xdf\xf0i\xca\x94\x0f\xb0A0\x17V\xb9&gt;%"p\xe8J\xc7\x14$&gt;\x12l\xe4\xf9N\xaa\xd5\xb0\xb6\xde\x1du{.\xbd\xa1\xb2\xf7\x87\xee\xc1"\x9f\xc9Lk\x8b\x05\x0f \x8d\xbd\x92\xe8Y\x00p\xb3\xf8\xe8\x19Te8\xd6\xf4\xbf]\x02#\xf9\xeb5W\x1f\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67209490741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>787598</v>
+        <v>787735</v>
       </c>
       <c r="B14" t="n">
-        <v>5926</v>
+        <v>1955</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Renato Portaluppi</t>
+          <t>Rogério Ceni</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\x04gAMA\x00\x00\xb1\x8f\x0b\xfca\x05\x00\x00\x00\x01sRGB\x00\xae\xce\x1c\xe9\x00\x00\x03\x00PLTE\xff\xff\xff\x9c\x9c\x9e\xaf\xae\xb0\xa2\xa1\xa3\x95\x94\x97\xa4\xa3\xa6\x9a\x99\x9c\xb1\xb0\xb2\xad\xac\xad\xa6\xa6\xa8\x9f\x9e\xa2\x95\x95\x99\xa9\xa8\xab\x98\x97\x9b\xff\xfe\xfe\xb4\xb3\xb5\xb6\xb6\xba\x80\\O\xc0\xbf\xc0\x9f\x9c\x9e\x90\x95\x9f\x91\x92\x97{PB\x8c\x8d\x92{WJ\x8b\x92\x9f\xfe\xc0\xab\xba\xb9\xb9\x84aU\xbb\xbb\xbd\x91\x90\x92\xff\xbd\x91\xff\xc3\x98\x82O:\xc7\xc2\xc2{I6\xab\xa9\xac\x95\x99\xa2\xb6\xb6\xb7\xfe\xb7\x88\xb2}u\xb7\x8as\xff\xbf\xa2\xfc\xf9\xf9\xf9\xf4\xf4\xa3\x82ptSG\xfe\xfc\xfc\x8bYI\x8ena\xad\x7fk\xe0\xa7\x8b\xdb\xa1|\xdb\xa3\x88\xd5\xa1\x82\xd1\x9c|pLB\xcb\x97y\x82\x85\x8e\xb5\x97\x81\xa6pk\x8d\x8e\x95\xc5\x91w?I^\xc0\x8e\x7f\xff\xc6\xb5\xda\xa7\x8d\xa7wc\xff\xc6\x9f\xb5\x85n\xb6\x82x\xfa\xbf\x97HRe\xbd\x85y\xe9\xb2\x92\xa3\x8c\x81\xa2\x9f\xa2\xfc\xbc\x8e\x87\x8d\x99\x8e^P\x86UD\xc3\xaa\x9b\xbf\x8eu\xed\xb1\x98pC4\x96te\xe4\xaa\x90\xbe\x8a|\x9a\x9c\xa2\xa5nV\xcb\x99\x84\xd5\xa0\x8a\xe4\xa3w\xc3\x97\x87\xb8\x86z\xaewo\xdf\xaa\x97\xf4\xb7\x9e\x87g[\xf1\xb3\x86\x95f\\e9+\xf2\xea\xe9\x9a{k|^U\xf9\xb8\xa1\xfc\xbb\xa4\xc1\xa1\x89\xc5\x92\x82\xe8\xac\x93\xcf\xb0\x98\xd6\xcc\xc9\xe1\xc4\xb0\xf0\xad\x8b\xdc\xa3\x83\xe0\xd3\xce\xc4\x89zfG@\xff\xca\xa3eOI\x82RC\xca\xaa\x93\xab\x90\x82\xbe\xa4\x94\xdf\xc9\xbd\xff\xc3\xae\xf1\xb5\x93uXP\xa5\x89x}d\\\xdf\x9aq\xf6\xf0\xef\xca\xb1\xa1\xe7\xdd\xdc\x86oe\x97\x80t\xd5\xb5\x9b\x9c\x86|mTLi&gt;2\xd8\xbe\xab\xec\xa2t\xd3\x9a\x84\xba\x9b\x85\xad\x8dy\xf4\xaa}\xd4\xb8\xa3tF6\xad\x85w\xe9\xd7\xd0\xd7\xbf\xb4\x8cvm\xb0\x84pJ+$\xa2xl\xfa\xb4\x94\x90dW\xb7\xa0\x95\xc1\xae\xa6\x9ctg\xb8\x8e~\x9bfR\xf5\xb5\x8dZ2&amp;\\dt\xb2\x91{\xc5\xa5\x8f\xf9\xb2\x85\x7f\x86\x95\xea\xaa\x81\xd9\x9b\x7fy\x7f\x8c\xe6\xac\x8cPXjoZT}jd\xc8\xb8\xb1\xa5\x91\x8a\xee\xa4\x83xK&lt;\xca\x90~\xa0kg\xb4\x9a\x8b\xe9\xc9\xaf\xa8|j\xec\xb5\x9e\xe9\xc0\xa2\xaf\x96\x88\x8c\x8b\x8eO61\xd3\xa5\x96\xba\xa6\x9d\xb4}b\x95oa\x9ck\\\xe5\xaf\x9c\xd6\x8bi\x91|s\xae\x99\x90\xba\x9f\x8e\xa4r]\x96\x98\x9e\xc6\x89n\xcf\xa1\x8e\xde\xb7\x99\xf2\xd7\xbf\xcf\x9f\x83\xf4\xbd\x99\xe2\xa1\x80\xd6\x96u\\E?X&gt;8ta[\xed\xe4\xe3\xc0\x87o\xfd\xb8\x98\xafv[\xe6\xa5\x84\xff\xf5\xec\x81OQ\xeb\xcf\xba\x97`M\x9fp`\xf1\xe1\xda\xb7|p\xff\xc9\xab\xcd\xb6\xa8\xff\xeb\xd2\x88_V\xb9\x82h\xe0\xbf\xa2\xc8\x9b\x8bho\x7f\xfb\xdf\xc3\xd2\xc4\xbf\xd1|_\xff\xce\xad\xc2\xbc\xbb(\x12\x0c\xd0\x93{\x87TV:\x1f\x18\xe5\xb8\xa6\x83}\x7f\xf3\xbd\xa7\xfa\xea\xe0\xbc\xb3\xb1\xf3\xdd\xcevz\x85\x91\x85\x84\xaa\x9e\x9d}qp\xb9YByHJ\xbdiR\x9a\x94\x94\xa1n\xf1\x9a\x00\x00 \x00IDATx\xda\xdc\x96\xefk\x1b\x87\x1d\xc6\xfb\x17hx{\x13B\x88\xf3b\xe0:\xd2\xc5\xa8k\xb7\x86\x03\x93\xcc\xe4E8\xca8gZ\xe8\x12\xa7D+\x96m5\xa7K\x14O\xdc\x9d\x1c\x9f\xe2\xf3\xfd\x10\xe7\x9e"b]b\xf54o \x95\x98!\xe9L\x91\xd2\x1c\x9a\x92b\xe9\x8cg\x15\xc7R\xec\xc6hS\x91R\r\x99\x96\xd0\x81-\x92\xbc\xd8\xbeN\xf7\'\xc8I\xd9#\x90\xe0\xde\xe8s\xcf\xf7\xd7\xf3\xc6\x1b\xff\xbf\xb2\xf4Y\xfa~|PV\xdb\xf0\xf0\x94\xd5f\x05:K\xdf\x8f\x84\xaf\xcf6&lt;\xed\xd9NGj\xb5a\x9b\xd5f\x9b\x9a\xb2\xf5\xbd\xf6\xdaY\xad\xd6G\xd3^\xefv\x1d7\xe5v{gkgkkx\xcaf\x01\xbd&gt;*\xabm\x0b\xb4\xe3\xf5\xce\xce\xfaIB,\xb5\xdb\xb35k_\xdfV\xcd\xf6?Y_\x0f\x94\x15\xa8j5\xaf?"\xfb\xab\xd9\xd5V\xab\nX\x16\xcb\xd6N\rl\xab\xb5gg\xa7\xad\xaf\xd84\xcb\xd4\x14 5\xda\xb3\xdb\xdb\xfemY\xe6d\xc0:Y\x92\xab\xb5=P\xcf\xb6\xbf\xd4\xaa\xca\xfe\xd2lm\xcb\xf6\n\xc1\xfa\x00\xca\xd2h|\x9b\x15\xf1\xa1\xccMT\xcc\xb6Z%\x91"\xc9\x7f\x93\x80\xb2S\xf2\xb7\xfd\xb2L%D\xea^\xab\xed\x1d\xee{e\xfb`Z.\xb5\x1a\xad\x12\x19\xe6\x18\x06E\xe3\xcaj6[\x959&amp;\x12\x0e\x87e9\x025%\x9b\x04E\x84EJ\xcc\xfe\xb1:\xfd\x8a&amp;\xd36\x9d\x05\xaaF)+\xcbL\x06E\x15\xe0JPr$b\xca&amp;\x81su\x99\x14\xe50EQbStS\xf7\xaa\xdf\xde\xf3\x0f[_E\x01k{P\xadv\xbb\x1a\x91\x19#\xc3dB(\x8a\x1a\xf9X\x1a\xe7\xb4\x84\x89\x87e\xb2.\x86\x9bd\x96$\x08\x86k~\xbe\xda$\xd2\xde\xa9\xfd\xee0\xebV\x1b\xa0\x1a;;;\xb3\x9et\x1a\xcfd\xb4&lt;\x86\x19\x98\xa4\xebZ&gt;\xafeL\xbc^\x97q&lt;L\x92PT&amp;\x1f#\x12\t\x82\x0c\xe7\xeb\xfb\xdca6\xb0\xaa\xd5\xd8i\xec\xd4f\xbd\x1e\x98\xc2:S\x04&amp;\x81\x15$L\xd7\x8a\x86\xa1q\xb8\xa1\x15M\xc6dp\xad\x98\xd1LFQ(\xb2*+\xe9i\xeb~\x16\xd0Of\xab{%l\xb4\xc1.\xaf\xb7]\xe5\x18Cb\x05A\x12\x04\x9d\xd6$\x0c\xd7h\xb0\rg4-\x16\x8bi\x19\x8a\xa0(Bl\xdeK(\xdc\xf0\xbe\xd5\xb1o:\x02\xbb\x1cf\xb0\xdah\xd4&lt;\x9e\xefvc\xb8\x1c\xa9g$\xa1\xe0\xe4y\x9e\x8e\x15\x03X\xc64M&amp;\x91\xc7cy\xedy\x1e\xc7\xdd0\x0cC\xf1\xdf_!\xdc\x89\xc8\xd4~\xb5\x95\x17\x0f\x8bD\xb5U*5J\xb1\xe2\xcf\x9e=\x7f\xaeKj!\x93a\x055\x10\xe0SX\xba\x90\x92\x0c%\x1er\xe3\x1c\x17\xe3\xf2\x9ays(\xf1\xe0\xc1\x97\xd4\xea\xaa\xf8\xe5\x80\x8b\x8e\xd8\xf6\x85j*\x8d\xb1\n\xd5\xca6K\xd5&amp;%\xc6\xf2?/Jz\x91\xb5\xf3\x82 \xa8|%\xc5c\x87\x9d/T\x07\xa2\xe0nLb1Z\xc7\xb3\x7fs \xac}N!V\x9bn\xe4\x13\xbb\xe1\xdd\x8f\xf6\xb2n\xb3\x08\xe2&amp;\x1bd\x98H\x10\xa2\x1c\xf9i,\xf6\xddv\x84\xd3P\x8cO\xf1\x85@\x85\xd7\xd5d\x85\x0fQT\xdc&gt;rhd\xc4i\xbf\x9bh\xcaq\xc4\xf5\xc41\xe8v+q\x97\x93\x8f=\xea\xfc8\xf6=*\xba\x90\x13\xe2\xbdfX\xc49\xb2T\xf5{~\x12\xcb\xe7\x8b\x99\x8ca\x84\x04\'\x9f\n\xa4\xb0B0\xc9\xd3\xa602\x99\n\x1c\x0b\x06G\x9c\x08\x91%%\xd5i\x9f\x0b\xa1n\x14\xdeI\xf1w~}Y\xd3#.\x94\xc8fK"c\x18\xb8\xbf\x1a\xd9\xddM\xc7\xf2E:\x03\xe7\'\xc4\xaa\x95dE*\xac\'\xf9\x82\x1aHI\x81\xf1r\xae\xbc&gt;\xe9r\xff\x9a@\xd5\x82\x14\x02\xac8\x12GMj\xb6\xe3e\x1c\x96\x92\xb4\x19.\xb5\xb2\x94\xa9i\xb0\x9e\xf4\xe7\xbbi\x10\x17\x0e\x13\x14x\xa1\xf2)\x81/\xfb\x02\xc9\xa4*U\xca\xb9\\\xae\\\x1e\x1fA\x06\xe3\x06\xa6\x175\xc5\x1dR\xe0D\x85\xe2\\\xad\xd3\xe7yZ\xc5L&amp;\x1cn\x8a\x04\x9e\x87\xbd\xce\xe8\x92\xbe\xeb\xf1x"r\x18\xa6\x93J\xa04\xcccy\xdd\xe7\xab`\xa9u\xf8\t\x06\x83&gt;_\x8a\x160]\x12\xb0\x8c\x12rSD\x02e\x15\xb2\xc39\xc7\xe2ei\x9a\x0e\xb9\xf7\x8eJ\x1e\xd7i\xc6(\xa6c\xbb\xe9\xed\x08pq\x04n\x1a\xb4\x10H\xf9\x00(U)\xfb\xd6\x93\xc9J\xd0\x97\xac\x04$U\xc0\n\x85\x02\xcb\xe0\x0c\x04\n\x02\r%\x1eY:\xdcZlHP\x117!&amp;\x0c\xc90\x0c\x86lDb\xe9m\xbf\xdf\x1f\xa9\xe38\xae\x19j\xca\xe7\xf3\xe5r\xeb\x15_9w;W\x06\xa8J0\xc5J\xa9\x82Z\xc0\x0c\x9ca\x08Ql\x12\x8a\xd2\xd9%a\x99\xa53\x88\xca\x9a\x0c"`\x98N\xe3\xf5j\x89$\x81\xa9\x9e\x8e\xc0\x91\xa9\xa75\xbaPY/\xaf\x03P\x12\xd8r\xdf\x7f\x9f\xf3\xf9\xf8\xca\x88\xa0tM:S)^\x15BT\xf6\x9eH\x88p\x83:\xda\xf0\xd83\x89\x0eI\x18\xc3\xe1\xe9|\x1138\xd8\xf4\x8dl\x04\x14\x83D\x03O${2\xb8\x1e\x1c/\x97\x83\xbe\xdc\xed\xdb\xb9\xdb\xd0f\x01\x95\xb7\xa3\xaeC\x81\x11\xe8\xb3$\x8f\x10d\x13.dG\xed\xeaK\xabj\x81\r\x85\x04=\x16\xd3\xf5g\x92\x01\xa1\x8a\\\rs\x1c\xa7\xb95\xc6\x80d\xc3\xdaG\x0e\x1c\xeb\xea:\xf6\xee\xf8\xb1\xf1\xdb\xc0\xb5&gt;&gt;&gt;Rp9X\xc4\xe5\x9c\x84\xe6\xaf\xb8\x10\xfb\x80\x02}\xaf\x18\xd3\x9d\xeb\xaea\xfd\x05\x86\xb1(-H\xcf\x8a\xff9,I\xa6\x19\x8f\xcf\x0fQJh&gt;\xf3/\xe5\xc2\x9b\xf4\x857\x91\x07O&gt;t8\x1c\xbf\xe9\xea:p`|\xfc\xb7\xeb\xe3\xef\x1e\x9b\x04\xa8^w\xdc\x15\x08\xc0\tp\xb9\\\x88\x0bQ\x12\x0c\xbbm\xed\xdc\xdd)H\xe0\x08\xaa\x14\xf8@\xea\x99\xa4k\x1a\x8b\xcc\xcf\x0f\r\xcd\x9f\xf8h\xe8\xc4\xcd\x0b\'\x86N\x9f\x1a\x18\x18\xf8\xe0\xeb\x0fN}=\xb0\xbc\xfc\xe0\x13\xa7\xb3\xeb\x00\xf0=\xb9{\xeb\x14\x8a"\x81`p}|2\xe0\n\x85\\q7\x15\x8aulG&lt;z\x8eA\xfc\xa4\xcd\x04\xeb\x02\xbf`\xb4\xe8Ph\xbe\xf7\xc4\x89\xd3g\xcf\x9e\xbep\xfa\xa3s\x1fo\xaclll\xac&lt;\xdd\xd3\xca\xc6\xa9\xde9\xc7\x17\xff\xf8p\xf9\xcf\xef/\xdf=u\xeb-(\xa3s\xd2\x97\xf4%\xed\x08\x02\xa7\x1e\x95;\x85e\xf1\x1e\xd6\x05\x163q\x9c\xc35\xe9E%\x18\x98\xeb\x1d\xea\x1f\x1c&lt;~|\xe5\xeag\x9f]}\xba\xb0\xf4\xf0\xe1\xd3\x85w~\xf1\xce_/]z\xbc\xb6\xf0\xf4j\xff7o-\xbf\xff\xd57\xa0\xfb\xbd\xb7\x10\x97\x9d\x7f\xa0\xaa\xa9\xc9\x11\xbb\x03A\x11\x94\xecT\xbe\xb1ztZU\xb1&lt;\x03[Q\x82\xf3r\xcc9w\xf6\xdc\xc7\xbf\xfc\xd5\x95\xc7\x8f\x1f/.&lt;|{amqq\xf1\xd2\x99\x8b\xd7\xce\x9c\x89F/-\xae=\\{\xd8\xbfr\xff\xfe\xc6\xca\xc3\x8d\xfb+\xfd\xbdsv\xa7\x13\xd6\x8a\xc0C\xccA\x91\xf9\x8e\xc5A\xab\'\x8fA\xdc\x83\xa8n2R2\x15\x088.\x9c\xbb\xb2\xb0\xb0\xf6\x87\xee#G\xa2\x8b/u\xf9\xda\xc5Q\xd0\xd8\xd8\xd8\xe8\xe8\xe5\xbd\x07w\xae/\xad,\xad\xc1W\xff\xe0\xddC\x10j\x04\x01\xee\x80\x8bv\xa3\xf1z\xa7\xb0l\x9e"&amp;\x18\xb1&lt;]\xd4\n\x90\xac\x02\xce?\xf5/\xac]_\xec\x01\xaa#\x9b\x00\x11\xbd|\xf1\x1a0\x1d\xdc\xd3\xd8\xc1\xa3\x9b\xd1\xc5O{z\xde\x9bYZ\xba\xbe\xb4\xb4\xb4\xf2\xd5\x17\xff40X\\\xbc@\xa3\x80\x85v\xd0-\xce\xc08\xaeX4\nlF=dw)\xe7\x16\x00f\x0f\xab;\x1a\x8d\x8eF\xf7|\x9a\x988811qr\xe2\xe4\xc1\xa3G\xa3\xdd=G\x8e\xdc\x989\x7f\xfd:\xd8\xb52\xf0\x80\xd5\x84JJ\xb5\xbbP\xc8]\xf3\xfeN-\x08\xeb\xac\\ODp\xbd\x08\xc1\x81F$W\xfc\xef\x8f\x17\xff\x12\x85\x7f~I\x15\x8d\x9e\xd93\n\x88\x0e\x9e\x04\xaa\x93\x13c\xf0h\x8f\xb8\xa7\xe7\xfc\xcc\x8d\x1b\xd7\xdf\x1e\\Fh\xbd\xc0\xf3*\x1bGQWb\xbbS-oy\xe4\x0f\'d\xb3X\x944\x86\xce\xb0t\xe2ww\xa0J\xdd \xb0\xea"|F\xc7^r\xfd\xa0\x83cc\x9b\x9b{\xf5\xed\xee\xb9scff\xe6\xfc\xf1\xde9\x84\x95\x04\x87\xdd\x01\x1d\xefHt.\n\x82]\x04g\xe8\x98\xa4A\x1c\xc5\xa8\xd5k\x9f\xf6t\xbf\x07T\x9b\x9b\x9bc\xa3?\xe8\xbf\xb4\x99\xffO\x13y\x1a\xc7\xef/ \xf1\x97\xfd\xa1!\xe9\xdcO\xf5\xaaUt:U\x02!:\x9du\xb2c&amp;,\xce1\xe4\xfaE\xa67\n+0H[\xac\xd1-#\xe1\xcb\x1dY\xa1\xb6\x04\xfc\x02~K\r\xdbL3\xd9\xf5\xb8*\xb4\x1b\xbbJ\xbbz\xa1\x95i\xefV\xb8&amp;\xac\'\xe4\x80\\\xea\x894\x8d\xfb\x8b1\xf7L\xdd\xfb\x0ff?m\x9a\xc2\xfc0\xaf\xbe\x9f\xf7\xe7\xf9&lt;\xcf3\x150\xddG\xaa\x0e\xb0\xd7\nB \x86\x88\x01\xb8\xcc\x87N\xcc7\x9b\xa0\x93l?p`f\xbe\xb9I\xbb\xd2f\x7f\xdb\xf3u\xe8\x9d\x7f8\xfe\xfdm\xe8\x93{\x12a\x83*\x16\xf8\x1d1\x12F\xe3/T\x1d\x1f\xa9t\x00\n\xb8+F\x02\x01\x8bE\xc0a\xb9\xda\xeb\xcdw\x9a\xfb/\x06\x0f\xec2\x05\xb5\xc4\x02\xb9\xd6\x9f\xfe\xf9\xda58\xa8\x9f\xde\x1fO(`\x1bZ\x8f\x18}\x04\x82\x10\x00\x06P\xf0\xea\xd0UB\xa8;sfzz\x05\xde\xc8\x8a\xde0\rX\xb3R\xfe\xc4\xbc\xa9\xfd\xf8\xc5\xfe\xea}\xcd&amp;S\x93\x86\x95MU\x9b\x1f\x8e\xc1\x1f\x9e\xbe\xbb}\xeb\xeah\x82\xd0\xabj!\x88\xcfG\x10&gt;\xdf\x9a\xba \x84*\x13\xd8^\xa7\xeeDwx6\xe4\x8e\x00U$\x04\xcb\xd1p}\xc2d\xaa\x0b\xee\xfa\xa2\xba\xfd\xe1\xa8\x96u\xe0\x9e\xc9\xa6\x87uO\xd7\xa1 \xf5\xcf\x95\xd7\x00\x0b\xd1#\x00\x05T\xbe\xd7\x95\xb5f\x84\xfc\xf0\xd1\xf3}F\xa3Q\x1f\x0e\x85\xc2\x86Y\xc3t(4\x16\x8ax\x8e8g\xda\x83W\xaa\xf7\xed\n\x8e\x0ck\xda%zo?\xfbrh\xfd\xfe\xed\xfb\xab\xa55\x9f\xbeb-\x02Q\xa9\xd6*Pkk\x90\xb4*Q\xec\x83\xefF\xd0\x11!\x08D\xaf\x07\xcf\x87B\x06\xb2\x0b\x8a\xa0\xba\x0b\xcd\xbb\xaa\x83C/\xb4\x9d\xe0\xbe\xbb\xa5\x8e\xae\xee{G7+\xb7\x83\x18V\xb4\xf2\xbd^{\xad\n\xa4S\xb9\x8c\xbaJ\x0c\x8dF\xf5\xc2\x9aO\xcd\x11\x11U-\xda\xbe\xb5&gt;\xd4\x99\x9d\xa9&gt;03:\xa8-\xd6\x7f\xbf\xbf\xd5\xd4\xe3?;\t\xd6\x82\xad\xaff-U\xad\x8aL\x15\x12U-c\x07|\xd1\xf9`\x7f\x12\x10[\x15_\x1fQ\xa3\x18f3C\xa3\x17\xba;\xdb\xdb;\xcfj\xdb\xc0B\x14\x9b\x86V\xbdg\xbdse\xb8\x1dlD5a\x12\xbe\n\x91\x9a\x13\x8c\xff?\x11\xcf\xa8h\xa0\xd7k5\x90 +\xb8&gt;B+\x99\xee\xb9\x91\x91\xce\xfe`\xa7W\xdb1D\xd5\xf0z\xd3z\x8f\xdf\xeb\x7f\xee#\xf4\x1f\xb1\x08D%\x82\x9a\x01\xa8:\xd4\xcc\xa5\x06\xb1\xa3RG\x80\xff\xd7|\xeaF\x05]#\x90{\t.\xb9\x99\xc5\xaf\xcctvz5n_\x07\xfdC\xeb\xa3^\xef\xea\x7f\x08\x92V\xb1\xc2\x88\xd1\xe5*\x97\xe3\xa9T&lt;\x15\x8f\xc3\x01\x04;Q\xd5\xcb\xe5\x82\xe3\xc8\x05yL!+zA.1 D&lt;\xbb\xb9y!\x18\xfc\xba{X\xe3\xe1\xc8\x1e\xef\xed\xf1\xab\x93^\xffQ\x82\xa6i\xfd4/$R\\*\xc5q\xc9d\x92\xe3\x00,\xde\x07y\xbe\\.\x03%\xfc7\xe5rQ\x0c\tA\x04.x\x11db5\xd1=\x13\xec\x1c\xd7xTY\xb5\x7f\xf8\xdd\xba\x7f\xd2\xbb\xfa\x9aP\xa9d\x0c\xc33I`\xda\xca$\x9d\xdf\x1d;\x92\xe4R}s:]\xb9\x94R9\xb7\x92v.\x85\n\x02#\xf1px\x1ah\x9a \x12Jv\xa4sf\xc9\xaf\xf9\xc8f\xd0?~\xf5g\xff\x9cJ\xa5\xb0\rGpP\xe9\xc2\xd7\'\xfb\xbfs\xde\xad\xffS\xbb\xd3\x9eR\x93V\x89\xc3\xbb\x9c\xce\xcc_\xee6%S\xa5Tb\x8e\x8b\n\xd3j\x18\x11$\xb1y\xc1\xb9T\xf7lR\xfb\xd1\xb7\xbf{}\xb5\xa7\x87\xa4i\x92Z\xea\xb2%\x93\xcf\x82\xa6\x89\xe3SS\xf5SS\xa7\xeet\xa5*\xb9\xb4\x9ci9vlw}}\xfd\xd4\xc5\x91R)Q\xc2\xbb\x1a\x02a\x1aNP\x88b\xd6y\xb7nH\xfb\xb1\xee\xfe\xe1\xf5\xf1\x9e\x9e\x04\xc9\xd3\nv\xc2\x86g\x93_\xde5\xf5O@\xe7j]\xb8yg+~\xf4\xf9\xd1\xa3\xab\xba\xe4\xee\x07\x0f\x1e&lt;\x99\x9a2\xed\xbe\xeb\xcc\x0cu\'m\xcb\x8bQ\x95\x0b!!\x86u\xc1\xb3\xdaOO\xab\xdazF\xe7\xe6\xcad\x98\x14-\xcb6\xae\xc4mm9\x9f9\xaflm\xfd\xae\xf1\xedT&amp;\x0e\xc6*\x97]\xdc\x91\x85\xc6F\xeb\x91\xae-\xe7\xd7\xb0\x13J\\\xe6\xd3\x8d\x86B$\x12\xa1\x89M\xc0z8\xac\xfdl\x1eR\xc4xO\xa2\x8f$I\xea\xd0!.\xcb9[\xae\\\xec\xbfs\xea\x8e\xc9\xfaS\xe3T\x86\xe9\xa8\x1c\x86\x82}\xbe\xa6\xe6:\x00o%\xb9R\xb9/\x9e\xc2kA.\xc0"\xb3\\\xa6\xae\xe9\xd7xd\xb0\xd7\xdb\xbd\x99(\x93\xa4B\xa18\x8e5&lt;\xb9t\xe9\xdc\xa3\x9d\x9d\x1b\x8f.\x7f~\xd3j\x13+\x07$!\xdb\xe6k\x1ao\xd6\xec;w\xf8\x8b\xe6`&amp;\x15g\x18\xac6\xcf\xd3\x80\x85.m\xcd\\\xfd\x15\x9ey\xee\x19\xf4\x8fd\x13:\x92t\x89\x14e\xd9\xa8yt\xee\xc7Go\xde\xbc\xb9\xf1\xe8\xde\'7_\x9e\xa0\xe0,"\x11Cny\xe1\xb7\x7f=\xbd\xb3S\xb9p\xf8\xd42FQr\xc1\r\x99\x8e\x94j\xafOx\xf7Wi\x1e\xc2\x9eR)\x9bM\x10$)R\xd8\xa1\x835\x87\xf7];\xfe\xe3\xce\x9b\x1b\xe7/\xdf{\xfb\xb7\xc7\x8b\xbc\x9e$\x00\xcb\xdd\xf0\xcf\x85\xb7\xf7n\x9c\x06\xae\x9d\xbf_\xba|\xa3\xa6\x96\x11s\x850\xcd\xd3\xd9N\xd3-\xedc\xb8\xe7y(\xc4\xcbY\x85\xa4IE\xae}\xbc`=X\xbf\xfb\xf8\xb5o\xce\x7fU\xfd\xc7\x7f7\xd7/:$\x9e&amp;\x01+b^n\xbdy\xf8\xf2\'\xff\x80\xe8~\xdb\xfe\xf6\xf7\xa7?\xdf\x88\x16x\x9e7\xd0d\x835\xf3B\xf3 \xee-@}\xa2P\n\xc4CD-\r\x1b6\xdc\xe6t\xd6]4MML\xd4[\x97\xa3\xa1H\x05\x8b\x0e\xcd\xe6\x97[\xeb_.\xdc\xfc\xea\xfc\xb7\xd7\xda\x9f,\xd4\xff\xf4\x87\x8d\xbc\x83\x87L/.-\xdbPtR\xe3\x02b\xb0\xf8a\x8c\x17\xe3\x80\xa5$dK\xb4 \x83\xef\xedp\xcc\x9cl\x9d?\xb8\x9cs\x84\xf4\x04a$\x8dP\xbc\xe7\x16\x0f\xbe\xacom\xado\x9e:v\xf2\xb3Xlq#oA\xc3&lt;\x1f\x96\x1c\x8e\xb1\xb1t\xaeM[\xb5^\xa4\x8by\x89\xa2\x14^Q\x14\x91\x92%\x99\x92e\x96\xc3m-\xcb\x9f\x06d\xb7\x14&amp;\xd5\xd6\xccH\xf3\x11\xde|\xa2\xd5jm=\xd6\xe2t\xda8\xb7d\xce\xe7\x0bT\x98\x0f\xf1\x92C\x1aK\x17\x8b\x1a\x0f\xc0\'\xd3\x8f\xb7s\xb2\x18\xe6\xc3"\x89\xc0\xaf\x17e4\xcbb\x81\xda\x86m\x8f\xc8\xf3\xee\xe9\x15(\xbd\x8c$\xdc?\xec\x8e\xc6^\xbd\xb2\xb6\xb6\xd8\xec\x98\xc7&lt;\x00\xa6\x0b+$\x1f\nI\x8e\xb1\x81\xe2\xfb\x0f\x1a?\xc6\x98\\\xfc\x90w\xe4\xdc\xbc\xc4\x8b\x08\xa1\xc2Q,nY\xb2XX\x86\x81f\xd0-\xba\xca\x1d.\xc5\xb8\x12\x8e\x84\xdd\x82=\x16\xeb\xedm\x89\x05\xa2\xd1\x9c\x87\x0f\xf3`G\x1ez~\x87#\xad=\xd6\x8b\xe2\xfb\xf4XAr\xf0\x10/\xc8\xa8J\x98\xcf\xca\x98L1.Ft\xbb\xdd\x92[)C\xfdG\xae\xd0\x11\xb7\x9ba\xd1@\xc0\xb6\x14\x08xP\tL\x15\xa6\xc9_\xb0@\xad\xa2\xb6XU\x80U\x1c+\xb8\xc1!\x14\x84\x11\x16\xadP\x94\xc8\xb8DAp\x01\x17x\x0b\x8aRqz\xda\x00XL\x9c\xe5\x02v\x8e\x95)\xb7*\x15I\x87yuD20\x06?\xad\xed7U\xda\xee\xc4\xf7\xe9\xd9\x9cGr\xc8\x14O)\xf1\x84\x92\xa0\xa8\x84\x18\x17\x19T\x98\x16\xdd\xa2\xa8\xa8X\xd3\xa4\xaa\x16p1.!\x80\xa1\x82(\x92\t\x02\x01\xb1x\x80\x02\xcb\x17\xdfc\xda&gt;\x18\xae\xda\x9b.\x02\x16*\x99\xa5,\x05\x8bQ?d\x08"\xcb\n\x0c\x90\xb8\xc53P\xc13\xb0%f\x81JH\x9dqa\x1e\x96\x12)\x17\x01\x1b\x97\xe7\xc1\xee@5\xf6\xe1\xfd\x88\xc6\xcf_\xf7\xa2\xc5t\xc1#Kf\x14e\x05(\xd6\x19\x01\xb0\xc0Y\xa8\xc0\xb0\x05\xc0\x02g1\xf0\xa6$\xa9 \xb9\x04\xf8\xcab\xac \xb0l6\x9e\xa5d\xd5W\x03\xd14x\xab\xa4u\x11\xd8\xb3\x08X\xacl6c8\xca\xe18\xd4\xea,4\x16pg4\x8f\xbae\n\x90\xa0\xcd\x10\xe4\\\xa1\x00\xa4)\x88"\x8a\xb1,\xcaq\x1c\x8e\x16\xd4i\xa5\xc3\\,\x16?h^4O\xe6\x07\nQTr\x98Q\x0c\xb7\xdbq\x8c\x93\x85x\x9c\x11\x04|{\xdb-\x17\nB\x1c$\x84\xe5\xc9\xcd\x16\xd0\x1c\x07\xf6bQ\x16\xfeNf\xec\x16\xb3\x8a\x95\xf3\x80Z\xdbmZc\r\x96\xf2\x05\x0fZ0\x9bQ\xbb\xdd\x1e\x08\x04p\x96\x85jJ@{7\xa2\xb3X4\n\xac\x01;\x8a\x07\xb6\xcd\x05t{\x1b\x13Rp\t\xb8p\xbb-\xa6b\xa5\xcdfs~ ]\xd2\xbah\xae\xda?\x89\t\xb2\xa7`\x89bv;\x06X\x18\n\x99\x142\xa7\xb5\xd5\x13\r\xc4zc-\xbd\xf0\x11\xfbly;\xea\xe9}\x15\x03c\xc92\x8ab\x98\xddV[\x0b@y\xb3\xd9\x91\x1f\xc8\xfd\xacy\xbdU\xf5/\x81ar\xb9Cf\x8b\xc5\x8e[\x02\x16\x1c\xb6\xa2\x10\x88Y\x1b_\xfd\x8f\x973\x0cm\x1b=\xe3x\xd8\xa7}\xf2\xb0?\x19\xe2\x1c\x9c?\x0c\x0b\xc7N\xa4\xd8\x92E\x8c\x11\x16\x12\xa8\x0c\xda\xe9\xea\x08\xcb\xb1\xd4\x1a76DmJ\xaa\x10\xba\x95\xf9\x9c\\\xd2#Y\xddps\x83c\xccd\x13\x92\x0f\xa1t\x85\xd9\xe0/\xdd\xd9\xe9\x1dg\x92\x11hK\x83K\xd6\xd4\x0c\x87@!m\xdaA\xc7\xb8\xb5\xecy\xd3\xc2\xd8\xe7\x8b\xf6H\x96\x8c\rz\x7f\xfe?\x7f\xbd\xef#\xe5U\xaa[\x9d \xcb\xab\xaa\xdaQ;\xc1`G\xdf\xd0\xd5Nuh\x04\xba\xad\x91\x11\xc0\xaa\xd2\x14`Q&gt;\xdf\xcc\xcc\xd0\xe9\x17\\\x03co/~1\t\x8e\xf7\x91~\x94\xb1\x91\xcbgF\xfc\xfa\x87\xe75M\x8f\x9e[Y)\xedW*\x9b\xc1\xe4\xea\xca\xe0\x87-\xbd\xf3o}\xc3\x8f\xceD(3r4EQ3\x94\x8f\xf2\x8d\xde\xbap\xfa\xf3 \x06^\xbc\xbdx\x06\xb0\xc0\xf1\xfe!\xb0M\x18\x06\xc5\\\'9\xc8o3\x95\xc5\xd5K\xdd\xe4\xe0\xde\xd9\xcd\xee\xca\x9bK\x83\x1d\xbf\x1eT\xab~\xc8\xf2\x99\xcbg\xc2$\x8c\xe6\xd4\x8c\x8fzD\x8d\x8e\xbe5az\xc6\x8b\x8b\xbf\xbb;\xe9\xf3\x0f\xf9\x87\xc2\x80\x06m\x8e\xe4\x84\xd6`\x8d\x91\xfd\xa1\xcaq\xb2\x99\x1c&lt;N\x9e-\x9d}\xffy{\xe3B\xac\x13\x04{\x01\xfc_AQ\x92\xa6g|\xa3&gt;\x8a\xbau\xeb\x82\tU\xf3\xdb/\xce\xdc%I\x1f9\x19\xf6C\x16\x91\x9f\xab\x07\xc1\xa4K\x0e\x93\xaf\x05\xd6\x08\x06\x93FP\r\x06\xf7\xd5G\xcf\x86\x1ej\x1d\xa1\x1a\x0b\xc7\xc2p\x8549\x04\x12\x93\x90Cj\xf4\xd6\xb3\x17\xa7=\xc9\xc6\xe2~{\xf7\xf2\x08I\x02\xd5\x90\x7f\x124#\xfd\xb9\xaaR\x0fj\xdb\xb0\xafJ\xbc\xcb\xa5\x06U\x97\x8b\x17^ol\x0c=\xbcP\xd5\x0e\xb7c\x08k\x88\x84\xae\x01A=z\x04\xd5\xe9?\x07N_\xadgPa\x91\x93\x93\xfep\x98\xf4\x93\x14%k\x8c\xa2*\xdb1t\xb2U\x19\x00S]P&amp;\xeb\x80\xe5\xbf\xf0P\x96\xb6\xb7s\xb1\x9d\x1c\xfa\x1d\x93\xd0A\xf8(\xfa;\xdf\xe8\xe8\xe9\xdf\xb0q_\rO\xe6(r2\xe6\x83\xcc\x90$\x15\x12C\x1a\xcf\xcb1h]\x96\x01\xb1\xcc\xf3JY\x92D9G\xe5\xe0LU$\xf8\xb4JQ4M\x91\x1b4\xa8E\xef&gt;\x1a\x9dYv\x9f\xfe\x99\xf8\x97\xd7!z\x1b~\xfe6\xb4\xbaC\xef\xca2S`b\xb1\xc3\xf8v&lt;~\x18g \x8d\x8a\xa2H\xa2\xa6\xc9\xafsrN#x\x8d\x115\xc0\xa2\x11Z\x98\xa2\x1b[337N=\x89\x03\xee;_\xc7\xe3\xeb\xbe\xeb$\x89\xc4\x12\xe9m\x91\xc0b1Y+\x1f\xc6\xe3eEqA\xa8|\x99a4\x19-1\x91(\x14\n\xd8G\xac\xef|\x93\xf4\xd6\x87\xc6V\xf8\x85\t\xb7F\xd0t\xfd\xbf\x93\xfe+$\xd4\xf0\x14M\xe50"$3X\xb9\\f\xcaJ\x99\xd1\xe0\x8d\x8b\xd7$\xb8\xe4\xd1\x98a\xe60\xc6\x15$\xac\x81\x894\x1d\xa2B\xbe\x99\xf5\xeb\xcb\xcb\xcb&amp;M\xf2\xb4\xf4\xfcm\x1d\x0cOR;;dN\xe6\xb0\xf80V\xc8\xc7\x81\xa6\x0c)\x94t\xc9\xc53\x8cRv\xe5\xf3ke\xe6P\xa9c\xa2x\x80A\'\x0fj\x91\xdf@\xb5l\xde\xd4\xfe\xa7\xd7Q\x06\xc1\xc6d.\xd4*3\x85"\x9ery\x82\xb5Z2\x99\xac}\xdc\x06\xd5\xa2aDRJ\\i\x11\xa1P\x08\x0b\xa1\xa0\xc9_\xf7\xf7\x98\x18\xfdWb\x90\xc3\x1d\xe0\xa20"\xae\x18\xd6@\xd71\xb8\x07\xf1\x1e\x96O\xe1h\xe2\x19\xabQ\xc0Z\xad\x90\xb8\xb5+"*j\xe7\xf7\xa6\xce\xb6\x1eX^\x07*y\x076e\xac\\\xecN\xad.\x9e\x0f,N-\xae&gt;x\xf2\xe4\xf1\xf4T`\nb10\xb5\xfa\xd8\x1a\xf1\xd4[\xa2\xb8\x0b\x8b\x18\xa2\xa8\xf1\x1b\xe6\xce\xb5\xbes}\x87\x92iyg\xe7\x90\xc9\xe7qo\xc0\xbbw\xb6\xb6\xb77\xb5\xb8\x08X\x8f\x1f?x\xf0`u\x158\x17\x9f,\xe0F\x91\r\xd1\xd8.`\x894\xb5~\xc7T\xaa\x9e\xb1\xaf\xc6\x01\x0b\xb2\x12/\x13M\xab\xc3p1Z\\S\x82\xb5\xe4\xde\xfbOq\x0c\x06K\xa63\xd9H\xb1@S\xe2.\x80\x85B;\xebcfBYz\xdc\xdf\x8c\xcb\xb7\xc1-r9\x1f\xc1\x8by\xe8\xa6\xaa\xf1\x98|\xc8\xa0;\xcc(\xd4\x8e\x84\x06\xa2b\xc9ax$4\x11\x07\xc30\x11\xb0\xfa\xcdU\xcbrc}\\\x13C\xe3\xb7\xf3\x9e\xa2"irU\xd0uF\xd3\xe2q\t\xc6D\xd5\xa5\xcb \x9e\x06\xdd\x84\xda\xc4=\x12\x9c\x88\xe2\x01\x07X\xe3WM~\xbe\xc02\xf7\xc3\xf804\xc4\xe4=k\xa0TH\x17\xa0l@\x1d&lt;\x145A\x97K\x10$F\x01\xcc\x10V(z\xca\xc3\xa1\x10Gp\x1cF-\x99l-4\xf1\x8d\x86\xb4\xac\x15\x8c\xbc\xc0h\xa2\xce\x08\xe8\x8f\x16Pm\xed\x1d\xef\x1d\x1f\xd7\xe0\x1d\x14\x12\xba\xae\x03W\x9d\x80\x046\x08\x0e\xbb\x1d\x1a\x1f3\x99\xca\xe2\xfe\xed\x1a\x06\x83]\xbd^(\x8b\xa2\x04\xda\xf0\xf5`\xb3\x86\'\x8eO"i@A\xc8\xeb\xa1\xdd]\x850\x8a\x04\xc6\xb1\x805\xcc\xad\x9b\xfe\x8c\x88\xfb&gt;\x87\x11l\x81\xa8C{\x12p\xf1\xf9|\xd1h\xd6"\xb5\x9bAcs\xdf\xa8\x05\xf3(\x95\xbb\x9c@\x18\xfb\x1f\xb1\xc4r\xe1\xaa\xd9T=\x96e\xc0\xaa\x17\x10W\x01\xc3$\x85W\xf8\xbc\x0b\x19KE\xab\n)\xe49^\x108\xae\xc0\xb2D\x81E\xf4\x07y\xd3\xad\x05\xfd&lt;\'\x16\x10V\x11\x99Y\xc1\x04A\xe8\x08@\x87\n\x1b\x9eG;\x80\x02,\xa2\x00\x0bk\x18\xa0X\xa3&lt;\xf6\x7fP+\x0fr\x81X\xe0hEd$I\xd2\x91\xc5u\x89\x11\x04]\xd0;*\x0f\xc5\xa0\xc4q\x1cAp\xac\x01\x8aq\x8d\xf6\xf6\xac\xe9X\xeee\xe8\x89\xf2\xc5:A\xd4\xc1\\\x0c\xa33\x8a\xa43\x92\xaek\xc0\x06`(4\x06\x03,\x96\xa8\xb3l\x9d\x03\xac\xaf\xfaM\x17\xcb\xfd5\xc6a\x05#\xe5\x89\x14\x970\x85a\xa0\\\x16\x18I8I\xe2\t\x13\xa7K\x82(\x9cX\x8be=u\xec\xa0\xd1\xb8b\xbeZs\xe3\x90\xa0\xa5\xd4&lt;\x1e\x89x\xf2P#K\x0c\\[\x08\xc8\xf4j\xc7\xd5\x01_\xf1.N\x10\xb1z\xb1\x99JE\xd8\x08\xca!w}\xce\xecg\xb5f\x9dk\x80\x85y\x9a\x0e\x07n\xe4\x97\x96\x14\xb0\xb9\x04\xaf\x0e\x1az\xd0\xa5\xa2\xc0\x0b\xf0\tW7"\x91f"A,5 \xae\\\x1b3\x97k`\xee\xfe\xda\xc1.\xc7y"\x8et\x02O\xe5!\\yty\xa1\x06\xd1@\xbdY;\xe9"\x08\x180#x:\xed\x88x\nl\xbb\xdd\x18wN\x98\xea.\xcb\xec\xb5o\xbf&lt;8\x00\xbbG\xf0\xac\x03\xb8&lt;\x9e|\xde\xa3\x06\x8b\xea\xe6f\xb2T*%K\x08\xacX\xac\xa7\x80*\x93N\x18\x04P\xb5\xa3\xc3N\xa7\x99\x8f\x90\xf5\xb8\xe7\x9c\xdf\xa6\x1a\x07\r\x02r\x84\'p\xbc\x99\xba\xe9\xb9i\xa4\x0c\xbc\x99\xe8v\xd3\xdd\xeeq7\x81C\xf6\x0c\x03O$@,\x9c\xad\x9f`\xfd\xc6\xe9\x9cxj^\x1a\x07\x9eN8\xff\x88\xb7\x1b\'XM\xbc\x89\xe3`||\x1e\xc7\xbb\x8e\x84#}\x9c\xedv\xb3]\x1c\xe1\x02\x95\xc3\xe1\xe8\xee\x1b-6\xdan\x97\xbe&lt;\x02.\xb3\xe4\xb2\xf4\x03\xd5\xc4/\xbe\xdf\x04,\xd6\x88$\xa0y \xc2\xe7\x13\xd9D6\x9b=\x86\xa4\xa1m6\x9b\xce\xa6\x1d\x0e\xd0\xaa\xd4lE\xa3l4\x1a=\x97\x02,\xa79rY\xdcc\x13pp\xa7\xed{k\xa3\xddf\xf7\xf7A\x11\x90$\x91\x05\x82L&amp;s/}/\x93Y\xb8\xb7p\x0fvik\xda\n\xe1(\x95\x9a\x00\x15\xad,\xce\xdfw\xda\x9c\x13\xb3\xa6\xb8\xea#\x94\xd3\xf6\xd9\x1f /,\xbb\x9fL8\xacih\x1ft\xc9,L{\x17\x16\x02\xd3\x81\x85\x05/\x10Ng\xecv\xf8\x06\x07*$\xd6\xe0\n\xc2\xb2\xd9N\xfb\xc96KO\xff\xdc\xc4\x11B\x02\xb0\x97?\xf7\x0e\xb6\xdb-\x96\x8d$\x1d I\xda\xee\xf5\xdaA\x9e\xcc\x9e7\x03K\xc0\xbb0=5\x1d\x08d\xec\xd6\xee\'\xaa\xca\xf97\xf3\xf7\x81\xca\xf9\xf2T\x1f\xfe\xb6\x0c\x00\x14\x1c\x15\x1d\x19\xb8l\xbd\xf3\x7f\x8e\xb6\xa3\xd1\xfd\xfdd\tlm\x05\xac\x8c=\x03\xab\x17\x98\x02\xb0\x99\x9a\x82\xbd\xdd\xeaH6[\xfb\xd1J4\xfa|\xf5\xd5\x9f\xde\xd9P\xf4N\x8c\xb9O\xe9\x96\xcd\xc9\xbf/p\xda&gt;\x05\xca\xe2\xd1\xbf\x16\xcfE\xa3\xad\x13.0\x17x\x08\xd0\xecVo 0\xe5E\x11\x807\x99=k7\xb9\xdf\x02\xaaJ\xe5\xdc\x9bW?\xbe\xb3\xf5\x1d\xd9\xe0\xf5rn\xf64\x14\x1b\x98}z\xed\xbfP\'\\\xce\xbe_\x05\xce?\x8fF7[\xd0\x81&amp;\xba\xc8\xf5\t\x87\x1d\xf4\n \x95\xbcv@\\\x80\x9d\xa3\x9b\xdc\x04\xa6J\xe5\xf9\xf9Wo\xfe\xf1\xce\xd6{tt\xd4\xd7\xfb\xcb\xa3\x97\xd7\xc6~\xea\xac\x03\xf7,\x12\xaa\xcf\xf6\xbf\xd1\xf7\xb3\x1f/}\x0eX\x9b\x9b\xcdd\x13\xf2\x08g\x1c\x98\xdf\x8e|\x15\x08x\xadv\x10\xce\xeb\x05g%+\'X\xe7V^\xad|v\xd4\xd7\x07k_o_oo\xaf\xf3\xdaO\x99\x0ea\xe9\x1f\xfbO\'g\x10\x9aH\x96\xc6q\xb5\xb4\xca\xb2tJ\xdb\xaaRIG\xb0K\xbd\x0ct{\x14\xa1\xc8a/\x81\x15\xf5P\x87\xeak\x13\xcf}hB\xbc-M\x939\xc4\xa3\x87!\x10\x16\x82\x1e\x0419\xc8\xde\xcca\x1b\x06\xc6k\xa7\xe7\xb4$\xa7&gt;\xc8B\xc24Bc\xd2\x0b\xd9\xff\xf7\xde+\xa3\xbb\xcd03\xff2\xe5\xabW\xaf\xde\xfb\xbd\xff\xf7\xd5\xab:t\xfb\x86\xf9\xb4\xfd?\\\xdb\xc9\x87#\xf7\xea\xe7\x7f\\_\xbf\xdf\xa3\xfcJe\xb1p\xa6R\xc8\xad\xe7G0\x8b\xfe\'M6\xfb\xb4\xd9\x84Q\xcc\xac\xcf\xb7\x1f"[\x8c\x89kk\xfb\xe6\xf5/\xef^\xfc\xf9U\xeaf\x9bY\xb5\xbd\x9ddbe\xc2\x8a..\xed\x97?_\x9f\xbe\xdfC\x1c?\xf1\xf4J\xa5X\xfc\x00ET\xa9&amp;T\xb9zyz\xd5\xea\xdf\xde\x9e\x87\xc8\xa5-\xce\xc5J7\xcf\x0e\xff\xcc;\x05\xee=\xea\x04\x14I\xc1\x04=\xa1^\x89R\x97\x0f\xdc\nn\xfe\xeb\x97\xd7\xefO^5_\x11\xd4S,\x12\xb4Z\x81\xa9\xca\xa8*\xa0j\x9e^\xd9\xc7\xb7\x17\x0f\xe5-\x8e\xb5U\xde\x12`\xe5/_\x0e\xff\xe0\x7fL\xc7k\xc23=I\x0cI\x01\xa5\x87\x98[\xb4\xb1je\xf1\xc1\x06\xd7_\xde\x9f\xe2\xb5\xe1\xe9\xd3&amp;\xe3JeS\x7fc\x86e\xb3\x95_\x89\xea\xb4rue\xf7?\xdf~\x8cn\xf9R\xf4\xad\xc7\xf2\xb3?\xf0\x9b\x0c/\xbe\x07T\x99\xc6_\xb9\xa4+\x8a\xa0\x12\xc9\x91L\x86\xf7\xbb\x85\xe6{\xac\xf4\xa0b\xcf\x19\xda\x81\x8aE0kY\xadV\xa5y\xd5\xac\x9cV\xec\xfe\xedE&gt;\xc99\xca\xe5-%Tfdev\xa8\xd3B\xf6\xdd\xefK\xa97\xcf\xb6\xd6\x02\x97L*!EO\xfa\xb6\t\x0f\x93\x91\xb3\xcbI\xa7\xb2w\xfdO\xdc\x8aY\x91\xe6\x0c\x0f\x9eY\x96\xd5\xa9Pn]\x9d^\x15\xdc\xe3\xe3\xaf\xa1\xf2\xa3\x14]\x89\xa2C\xffP\xbf\xf9\x1d+\xec\x0b\xba\xf9\xca\xb0\'\xa9\xe8\xba^\xd6\x93\xba\x8ent\xd6I\xb2\xecs\x96\xe3^Q_\\\xee\xc3\x93\x93\xbd\xbd\xbdW)\xeb\xb9\x85\xa5\x9e\xa7;\xf0\xaaU\xab\xd2&lt;A\x14ON[n\xff\xf3Az\x8d\n\xc6\xeb\xa1"\x81\xf1^\xcb:\x1c\xfb\xe57\x7f\xc6\x82A!@\xba\x90B\n\x91We *\x84FRk\xf3\xc1\xd2\x8b\x1d\\T;\x1dz\xf0}\xfa\x84E\x1e+{\xd5\xaaZ\xd9l\x87\x85\x109\x9fJ5\xaf*\xbd\xfe\xe7\x8b;\x85.\xd7\xc5\x1f\xf5\x19\x85B\x8c\x8c\xaa\x10\xd4\xd7\xbf\xf1\xfb\x1a\x08\xdf\x93-\x9f\x883\x91t\xc5\xaf"\xde\xa4b\x0cvwv\x06\xc3\xc8\xe2\xe8\x12\\\x96\x95\xad\xa4R\x1dz\xe4X\xcfaZ\x96\x850\xdb\xe9T&gt;5O*v\xfb\xf8\xe2k\x94f\xe5w\x03$\xcc\x94\xb0\x00\x06\xd3h\x00=\x84P\x1e~{\x85\x05\xd4MRY\xf7IP=\xd6P\x00\xe2\xb5\xf1\x0e4\x1eI\xde\xc3\xd9\x87I\xa1\x00k,\xab:!\xb3\xac\xac\x95J\x81*\xdb\xea\xb4\x9a\x14E\xb7\xdd?&gt;W\x95\x8dY2\xa2h1\xba\x12\xef8\x84P~\xff\x8d%\xe1\xf0\x89\x0e\xf6$\x0f\x9c\xb2\xa9\x90\xef\x9b\xa2r\xaa\x9d\xdd\xb9Q\xf2\xe4\xb3\x0f6\xb0:\xe4\xd9\xa4W\xed\x01\xcb\x9a`\xe3\xf9\x8e\x9b\xb0\xdb?\xfe*E\xc5\xa5\x1bX\x9bbC\xfc?\xd8\x8bw\x87\xcf\x14\xe6h\x88\x92\tR\xc8b\xca+\x9f\x0bu\xfa\xca+`\r\x86\xa5\x927=p\xedN\x8b\xd4\xb1&amp;\xee\x84\xe2\x07\xf3\xfeET\'\xcdN\x17^\xbd\x8d\xaf\xa6Dd\xa1\xbf+dT\x11\x8aF\xe3\xbegq\x96iJ(\xfa\xe5\xf5\xc6O\r\xbc\xb9\xc1\xcd\xe1\x13\x84(\xe6Q\xb1\x0bq"F\xaa(\xc5\x8c\xa0\xda\xd9\x997J\xd0b\x1f\\\x15\xa8e\xb9\xdd\x9e\xd5\xaad[\xb4`5ON\x9bV\xb7\x8f\x9bP\x8a\xaa\xfajr\n\xeb\x14\x10\xc5x\x1c\x1f"*bS\x01\xc68C\x04\xf6\xee\xf1\x9f\x80\xa2\x96\x0f\x1d\xe5\xfbu\xad\x8e\x94P\xd1\xa4l\x17A\xcc\x11\x96v\xbe\xdf\x83_\xe0\xeaL\xbamw\xd2\xa2\x90\xe2\xb0\xd9\xb2\xfbD\xa5I\xc3\xf90\xc2\x8dg\xbd\xa3\x1f\x15f\xc5\xe3*\xb0T*\x14U\xec\xe2da\x94H\x95g\x8f\xb9\xcf\xc7\xf5\xd3\x90f\x10/&gt;\x1e\t\xa3C\xd1\xd2|wgW\x80\r\x98[\xb0\xabk\x93_\xadV\xa1\xd7n\xbbV\xc7B\xb9\xd2\xea \xd9\xfb\xc7\x97\x0bo\xb9;\x1e\xcf\x8dxqm\x86qUU#\xaaJ`T@\x11\x07d\x1fm\xa8S^\xfb\xaf=\xc5\xa2?&lt;\x90\xa8\x10\'\xc1\xd88K\x03\x9e\x08Qu\xb4\xcb4\xde\xd9\x1d\x0fF9\x03~\x19\x19\xb2\x8b\xf2\xabCv\xc1/\x8b\x12m\xe2\xb6\x91W\x17\xe7\xcep0\x1e\xe3\x82\x91\xb76\xcb\xf8\xbd\x1a!\x16\t\x1b\n\x12\xe3R\xe3+\xa9\xc5/\xaf\x0f\xd9k\x0fy\xc3\xc3\xcb\xf6E\n&gt;Wq\xb5\x8f\x16\xb1`\x91\x06\xd0|\x98+\x19\x06\xb0J\xf9\xb7H/\x9b\xdd\x8c\xbdn\x1f~\xc10\x02\x84Yg\x99Fc\xce\xc2&gt;\x9e\xe7\xd4(E\x8a\xe0"u\xc0D"\x11\x89\n\xbc\x18\x81w\xf4\xf1U\x0c\xe1\xdd\xfa\xbb\x00s\x94\x8d/\xec,\xae\xb8\xf8)j\xea\x91Y\x08\xc9p\x84\xad\xc1\xb1\xa0\xcc\xd7\xaa\xcd\x96/\xab\xea\xf6\xfbm|\x13U\xbb\xdf\xfe\xb00r\xb9!\xccB\xe0\xc7\x83F\x0c\x1d\xb1^%\x89P\xeaR\x84I\x8a\xb0\x02\xa3\x89\xb0\x90rT\xe5\xdf\x87\x01\xe1"w\xd37\xd4G\x17\x85x\x8e\xcc\x1a\x8c\x1a\xb9\xc6\x10T\x14C\xc6e\x18?V-\xbbP\xe8X=J\xa8\x89E\xdf]\xb7\xdb=\x9f\x11\xd6\x80\xa6B\x17.%\x95e\x93\x1a\x91$\xa9\x8em\xa5\x88 \\W]R\xbf\x04\xd4o\x89\xe1D\xc4AD\xf5jc\xa2\xca\x95r\x18\x8c\xb8r\x86\xc0J\x80\x8b\xec\xea\x91G\xdd\xc2\xc4\xee\xf5z\xae\xbb\xbf(\x19\xd4t0\xa6\xa8#\x1f\x971\xde\x95t/\xd5c\xb1\xd8#\xd5\xfd#\r\x07\xbcG\xc2\x81{\rk\xd5`\x85\x13\x11\xbe\x96\x96\x03\x040\x87&lt;\xc7`\r\xc2\x12`\xe0zk\x15\x90\xf36\xeb\xa3t\x1f\x00\x00\x03\xc5IDATb\xd7\xc6\xe2\xd5)\xd8\xb6\xdd=\x9a\x12Un8\x1a\x8d\x86\xc39\xdd\xbcK\x8fc\xd5\xefAEd\xb1:\xc4\xd1\x18\x13\x19\x87\xe2=\xea\xee\xe1h\x80\x1f\nGW\xcdT\xd1\x98\xcd\xc13\xf0\xda\xd0\x00G\x8e\xfc"\xacF\xa3\x01\xaa\x19q\x85\x7f\xa55\xc2BN\x01\xa8@Tn\xfb\xa3f\xe4\x0c\xdfY\x86\xb5\xbb\x0cR\xafR0\x9d\x8eq\xd5\xd9\x9f\x18\xf01\xaa\x04%\xd5\xd3\x81\xc7\x8a\x98\x84\x96\x9e\xe4E&lt;n\xa8\x08=\xf6\xb3i\xc6`\xf3/!\xa9\x1a\x18\x0bX\r\xa2\x9a\x81\xf5.\x8b\xe4\xea\xd8]\xa2\xc2\x12V\xb0]\x9eZ\xa0"_\x1b\xe2A\xba\xf4\xd0Q,\r.(\xb6\x82\xe3\x8a\xc5DU:]g\r\x02\xbc\x96\xf2\xd0\xab{,\xf01\xc9\xf3\xb0\xabK+\x0b=\xcfX\xa9d\x98\x845m\x18\xb3\xd9\xcc\xf3J\xc6\xc3\xab\x9e]@\xf0\n\x84U\x98 \xb7\xf6\xcf5\x9a\x05\xf9k\xe4\x86\xf31\xb4\x8b\xf7\x0e\x19\xcb\x82\x9c\x0e\x06\x19\x16\x83[S\x10\x1b\xd5\xa49y\x80Q2\x1e2\xd5\x0bz8\xf0\xa8\x08\x87=\x86\x0cSc^i6\xe3X\xb3\x92\xe1\x00+Ssf\xb3\x92\x07\xe0\xf0O\xcf\x91\xf5d\x93\x8d\xd5\xd5\xeeM\xf6?\xde\x19t\xbb\xc6b%\xcfh\x8c\x96\xcb\xe5\x9cV\xd6A-]\xaf\xcbr\x90\xb8@\xe0\x873\xcd\x15\xe4\x1b7S\x96\x03t&gt;\x18\x8cy\xc2\xc7 ]\x86\xd1\xd2\xc0\xc3\x862K\x03\x94=y\x96\xd04CK\xcc4\xc3t\x1aSG\x03\xd7,a\x98w)\xac]\x85\xab\x02\xcb-\xb8u\xf0W\x19\xa9U\xc2E\x9eGi?\xac\xd5F\x00\xdb\x1d81\x0c(\x07\xb1\xa5e\x01@c\x07\x83\xb2,\xea\x194}\x07\x82\xbe\x18,o4\x135\xe9\x18\xab\xc5\x8c\xbc4\x06\t\x06K\x00\xc3\xc9\x19\xb02\x8e\xa3%4\xd34\x8d\x87\x1f&amp;0\x0bv!\x90\x94ZG\x0f\xe9\x12\xb2\x003\x91g\r\xba\x17k\xe0\xc2\xbd&lt;\x9ek\x1c\x00J\xaf\x8d&amp;\'\xb8\xe45\x05\xc4wpM\xbc\xddF\xd5\xc6)9\xa19\xc4ehf\xd84\x1dma\xd9\x80\xfa\x0f\x85\xb1`\xd9\xee\xfeOwa\xca\x96\x84\xac\x99\xb5\xd1\xa86\xe4`\xf3\xc1\xa0&amp;k "*\xbfsb\xd2\xc2\xe1\xb0\xc6\xfb\xc5\x87\x9a$\x12\x81\x15\xe8j\xe8\x92,k\x88\x16\xab\r\xae\xa0\x05~\xc2\xc0\xa9Y\xc2t2\x198e:\xf0-w\x97\xea\x15H6s\xcb\xaa\xee\x1f|E\x17y\xd3\x0c\x83\nX5\xae\xc5|\t\x7f7\\\xe1L\x84\x15\xd6\x18\x19\x0ee0\x86\x03\xc0Kh\x9b.R\xac\xd0R3d\x83_\xbb\xd1\x8f\xc6:03\x19\x07\x014\xcd\x8c\x93\xcb\xff`1(\x86\x85\x15\xbf\xda=\xcb\xcf\xe0\xa6\xd9X\x82\n\xe2`\xb8b#P\xe8\x0c@\xa6\x99g\\\xa0\x08\x0bF(\xc0\x0041\x98OG\xd8p\x021\xd2\x08\xc4?\xc3\xdb\x85Mr\xcc$,\x87\x1a\xe5\xcc\xbbl\x8f\xee\xc3.V\x8a\x82\xd5\x9b\xb8\xeeY\xde\xccL3N\x8dcM!\x82\nS\x0f\x8c\x80\xa7I8\x9cgbn\t\xf1\x9a|`\x05\xa8\xad\xd3\xe1\x1b\x83:DF\'X\xec\xfd\x06&amp;\xaf\x04\x172\xac\xe189g\xfa\x16\x8fB\x1b\x0fC\xdb\x9e\xd0W\xfbl\n,\xa7\xb6`^\x11`\x86B\xfa8\x14\xf5E\x08\xd3|f\x1d\x8b\x80\xa6\x02k\xady\xd8\x07\x13\xae\xe4\xd1#R\x88s\xf1:r\x9dD\xb9\x0e\xae\x06lh8x\xc1q\xbb6\xde\x9cA\xd7\xab\xba\xee\xe5\xc7)]\xb9X2\xa720J\xb8\x92\x17\xa3\xd0\x07\x04t.\x9f\xdf\xf0i\xca\x94\x0f\xb0A0\x17V\xb9&gt;%"p\xe8J\xc7\x14$&gt;\x12l\xe4\xf9N\xaa\xd5\xb0\xb6\xde\x1du{.\xbd\xa1\xb2\xf7\x87\xee\xc1"\x9f\xc9Lk\x8b\x05\x0f \x8d\xbd\x92\xe8Y\x00p\xb3\xf8\xe8\x19Te8\xd6\xf4\xbf]\x02#\xf9\xeb5W\x1f\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa2zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\xdc0\x08\xdds\x8a\x1cA\x02\x01\xf6q\\\x1ev\xa9\xca2\xc7\xcfC\xb2\xfbw\xb7\xc7E\xda\xd5\xb2e1&lt;\x9e\x00\x99\xfe\xfe\xfeC\xbf\xf0\xcb\xac\x99d\xf4N\x06\xefl\xf2d\x93\xa9\x17\xcb\x9cbn\xa3\xcd.\xb1&amp;\x13\xbbe+\xb6\x18\x9b\xca\xd0\xde\xbf\xa4\x17v\x99)\r\x9c&gt;/\x98f(\x99\x0c\xca\xa5\x14\xfb2\xdb\xd6\xc2t\xe7\x05W\x92\x01\xa6\x16\xf2\xfa\xe3\xd9!\xc5\xb3-\x10t^$K\x1f\x17\x9e\x920F\xc685#\xb8\x8b\xf70\x0b4\xde\xf1\x14\x0eX(`\xa5\xe1\n\x17@\xa9\x8b\t\xe6\xbd\'\xa8\xf7\x08q\x06\xceu\x1dA\xb3\x01\x11\xe2\x0c\xa0\xec{c\xef!AI\xf6\x01\xc1\xb0\xc2\xe0\xc83m\xc1\x84 F\x85\xa2\x06\x8d\x01\x1d\x90\x11$\xcf\xb2\x12z\x84\xbb:\x18\xbc\x10\xe0\x96P&gt;\x16{\x85\x97m\x04\xf2\x0b\x19\x02\xe8\xd1\xfa-\x8c:\xcb6\x9bG\x18\x95J0d\x06Z5L\x05\xae\xa2U\x86k,\x19*\x8e\xbf 4N!\x8c\xd1\xb0\x84\\A@\x89\'\xf8\xca2\xf2\xf2\xa2\x14\xee\x8e\x115\x19\xba\x03\xde\xd8\x0b\x16\xaeI\xa0\x1f\x9f\xc7\xdb\xfc49\xe8:;\x9e&amp;G\xc9T\xb3\x02\xc6\x8c\xf7YRsv\x06\xd1/\x990\xbc\xba\x9cMp\x9f \x85*tdv\xcb\x94t\x9e)\xe5\xcdP\xe5\x13j{I\xfa(RA\xbc\xf9:\xa3\xd6dYg\xe8\x18\x19qC\x8f\xb488\xc2^ 0\xe5J\xdcR\xd3\x1e\x8b\x0f1\xc6\xf6(\x05\x03H9l&gt;J\x18\x95.\x85\'\xdc\x15#\x9ec\xfb\x8f\xd4~\xb46Gt\xe1I\x1d\xd4\x97~s\x82lrQ4\x17\x8fV\x82\xc0X\xb0\xedpX\xf0\xa4T\x11tX\x94x\xc2\x0e(\x16&lt;\xde`\xd9B\xdc\x8e\x91\xbd\xb9\tTt\x13?\x9c\xaf\x984\xfc\x86\xf1\x8a*\xc3x\x86\xb3\x1e\xb3NZf\x9f\xa9\xde\xd3\xacQ\x99\x8am\xe9\xb4\xd0\xbag\xc1\xc2\x0e\xfe\xbb\xe0&amp;wV\xb6\xf4\xac\xb6\xef\xb2\x0c\xcd\xffY\xde~\x9a&lt;*oz^\xdf\xff\xa9\xf9{:&gt;\xcf\xb6\xc2\xa6\xed\xfc\xfc\xa9\xe6\xa6\xb2\x16\xb3\x9c\x17\xf3j\x1at\x04\x18\xb2.z/:\xf1`K\xf4\xdeh\xbd\xa5\xf7\xc11\xaf\xbc|\x88o\xd2{\xc3tG\xe2S\x0e\xe9\x8e\xc4\xa7\x1cR\xfb\x0e9\'\xf1\x80\xc3\x0e\xb5\x9f\xbe\x1b"\x1d@n\xa6\xdf\x1b\x06\x82\x8f,\xc75\x82M\x89\x93\x0f-\x00\x9f?\xdcE\x0f\xc39\x08\xb2\xa3\x89\xe1\xcf}e\xeb\xc6\xc8\xdd\xb9vJ\xf2\xb7\xda\x8d\xa1\xf6Au\xeao\xf7E\x87\xef\xb3\x7f\\$@`7\xafd\xfa\x00\x00iMIDATx\xda\xed\xfdY\xb0%\xd9u\x9e\t~k\xef\xed~\xa6;\xc7\x1c\x99\x91\x199\'2\x81Db$\x06\x82\x04@\x8a\x83HJ\xa6\xa1\xdaZmV]\xd5\xd6*\xab~\xe9\xe7\xb6~*\xbc\xd4[\x99\xe9\xa1e\xd6U\xa6\xeeVwI-\x89"5\x91\x14Y$H\x90\x840\x10 F\x02\xc8\x119O1\xc7\x1d\xcf9\xee\xbe\xf7^\xfd\xb0\xb6\xfb\xb9\x81VIbI\xa5\xb8I\xca\r\x81\x88\x8c\xb8\xf7\xdcs|/_\xc3\xbf\xfe\xf5/QU\xe5?]\xc3\xf5\xa3\xb7#v\x1d1%\x96\xcb\x05\xb1k\xe9\xbaH\xd7\xb5\xa4\x18\x89]GU\xd7L&amp;S6\xb7\xb7\x19\x8d\'8\x00\x91\xbb\xfd1\xee\xfa\x15\xee\xf6\x1b\xb8\xdb\xd7\x8f\x1a\x92\xaa\xa2\xaa\xc4\xae\xe3\xe8\xe8\x88\xa6Yrtx\xc0\xc1\xfe&gt;W\xaf\xbc\xc3k\xaf\xbc\x84\x00\x93\xe9\x1a\x17\xef\xb9\x07\x1f\x02\xeb\x1b\x1b\x1c\x1e\x1ep\xe6\xec9\xa6\xb35\xbc\xf7\xc81\xe3\x92?\x87\x86&amp;\x7f\x1e=Vo&lt;\xfd\xaf\x9c\x12]\xec\xd8\xdf\xdb\xe3\xe8\xf0\x90[7o\xf0\xc2\xf3\xcfr\xb0\xb7\xc7t6CDX.\x16\x1c\x1c\xec\x13B`2\x990[[c&lt;\x9ep\xfa\xccY\xda\xa6\xe1\xc5\xe7\x9f\xe5\xdc\x85\x0b\\\xbc\xf7&gt;vN\x9d\xe6\xa1G\x1e\xc3{\x7f\xe7\xcd\xfesd`\x7f\xee\x0c\xab\xeb:\xe6G\x87\xcc\x8f\xe6(\xcalm\x8d\x83\xfd}^}\xf9%^z\xf1y\x16\x8b\x05\xcdr\x89s\x8e\xfd\xfd=\x96\x8b%\x87\x07{\x800\x9eNy\xe8\xe1G\xb8}\xf3\x06k\xeb\xeb\x88\x08\xfb{\xbb\xe4\x94\xb8v\xf5\n\xcb\xe5\x82\x87\x1fy\x9c\xa7?\xf2Q\xd6\xd77\x18O\xa6\xdcs\xef%f\xb35\xaa\xba\x1e\x0c\xeb\xcf\x83\x81\xfd\xb9\x08\x85\xbdW\xca\xaa\xbc\xfe\xea+\xbc\xf5\xe6\x1b\xa8*!\x04\x96\x8b\x05\xaf\xbc\xf2\x12W\xdez\x0b\xef=\xf3\xa3#\xd6\xd6\xd7\xe9\xba\x8e\xbd}\xf3`\xf3\xf9\x1cUh\xaf]\xe3\xf6\xee.\xc1{\x96\x8b\x05\xb3\xd9\x94\xe9t\xca}\xf7_&amp;\xa5\xc4\x1b\xaf\xbdB\x17;^|\xee\x19R\x8c\xdc{\xdf\x03\xd4UE:}\x86\xf1dB\x15*\xea\xd1\x08\xf8\xb3o\\\x7f\xe6\rKUI1\xa2(GGG\xfc\xfa?\xffU\xae\xbes\x85\x10&lt;\xd3\xd9\x1aGG\x87\xec\xef\xed\xe1}@\xc4&lt;\xda;W\xdea\xf7\xf6.\x8bfIJ\tEP\xcd\xa8\xc2\xad\xdb\xb7A\x15\x11!T\x81\x9d\xedm|Us\xf3\xda\x15\xe6\xf39\xd7\xdey\x87\xb6iX\xdbX\xe7\xfa\xf5+,\x9b\x05 \\\xba\xef~.?\xf80\xd3\xe9\x8c\xd1x\xc4h4\xfe3m\\\x7f\xa6\rKU\x8912\x9f\xcf\xb9~\xf5\n\xcf?\xfb\x0c\xaf\xbe\xf4\x12{\xbb\xbb\xb4m\x83\x88\xe0|`\xe7\xd4)\xae\xbc\xf36m\x17Y6\r\x8b\xe5\x82\xae\x8bx\xef\xa9\xab\x9a\x10\x1c\xcey\x9a\xb6\x05\x1cJFs&amp;G\xb8~\xfd:{\xfb\xfb4\x8b\x05N\x1c]\x866%\x9a\xae\xe3\xfa\xf5\x1b\xbc\xf5\xc6\xeb\xacon\xb3\xb6\xbe\xc1\xfb\xde\xff\x01.\\\xbc\xc0=\xf7\\\xe2\x81\x87\x1e&amp;\x84@\xce\x99\xd8u\x8c\xc6\x7f\xb6\x0c\xed\xcfl\x8e\xd54\r7o\\g~4\xe7\xfb\x7f\xf2m\xbe\xf2\xa5/\xb2{\xfb\x16\x93\xc9\x94\xb6i\xd8\xdf\xdf\xe7\xe8\xe8\x90\xe5r\t8R\xce,\x9b\x06\xcdJ\xd2\x8c\x13\xc7d2\xa6\xaeG,\x16s\xbc\xf7t]\x07\x80\xf7\x82(8\xe7\x98\xad\xcd\xe8\xda\xc8|q\x84\x88\xc39G=\xaa\x11q\x00llnq4_p{w\x17Uecc\x9d\xbf\xf9_\xfd\xd7L\xa7\x13N\x9f:\xcd\x85{\xeea\xb9l8:&lt;\xe4\xa1G\x1ee6\x9b\xdd\xed[\xf7\x1f\xe4\xfa3\xe5\xb1\xfa*o1\x9fs\xe3\xc65\xdey\xfbm\x9e\x7f\xf6\x07\xbc\xf9\xc6\x1b\xdc\xbc~\x8d\x10*.\xde{\x89\x1f&gt;\xff\x1c\x8b\xc5\x82e\xd3\xb2h:\xba\x82O\xa9&amp;TA\x01Ah\xdb\x16\x11H)1\x1a\x8f\xc9)S\xd7\x15]\xccx\'t]\xc2\xcd\x17\xe4\x94\xe9\x9a\x96z&lt;FQbJ\x08\x99\x98\x12a&gt;goo\x9f\xbd\xfd}4+&gt;T\xbc\xf4\xf2+T\xc1\xb1{\xeb&amp;9%.^\xbc\x07\xe7=W\xdey\x9b\x0f~\xf8#\xec\x9c:\x8ds\xeen\xdf\xce\x7f\xaf\xeb\xcf\x84\xc7:\x1e\xf2\x9af\xc9\xdbo\xbe\xc9\x9bo\xbc\xc6\xf5\xabWy\xfd\xb5Wi\xdb\x96\xa3\xc3\x03\x14\xc5\xfb\xc0\xc1\xc1!\xaf\xbe\xfa*\xa3\xd1\x08\xef\x037o\xde`&gt;?"\xc6\x0e\x05r\xca8\xe7q\xce\x93sF\x10F\xa3\x11\x9a"\xe3\xe9\x94\x943\xde\xdb\xd7!\x82\xa6\x84j\xc69\x87\x8agsk\x83\xf1\xa8\xe6\xe0\xf0\x90\xe5\xd2\x8cw\xb1\\RU5k\xb35\xba\xd4q\xff\xa5\xfb\xb8\xef\xbeK\\y\xebM\x8e\x0e\xf79}\xe6,\xf7_~\x80\xfb.?\xc0O~\xe6\xb3\xdc\x7f\xf9\xc1w\xb5q\xfd\x99\xf0X\xcb\xc5\x82+W\xde\xe1\xca;o\xf3\xfc\xb3\xcfp\xfd\xeaUn\xde\xbc\x01(\x93\xc9\x94\xaa\xaaH9\x03\xc2k\xaf\xbd\xccb\xd9\x94\xdc&amp;R\x85\x1aEp\xe2\xc8YI9#\xaa$U\x9c8R\xdb\x11\xaa\x00)\x12\x04\xea\xe0\x88I\xc89\xa2\x9a\xc91\x03\x90S"\x12\xc1y\x0e\x0f\x8f\xd8\xdf\xdb\x07\x81\xaa\xaa\xa8S\xa2sB\xce\t\x9c\xd0\x1c5\xbc\xfc\xca\xcb\xbc\xfa\xea\xcb\xc4f\x89\x13\xb8v\xf5*\xcf&gt;\xf3}vvN\x81*?\xfb\x0bS676\x19O&amp;\xefJ\x03{W{\xac\x94\x12\xf3\xa3#\x9e{\xf6\x19n\xde\xbc\xce\xed[\xb7\xf8\xfaW\xbf\xc2\xad\x1b\xd7\xd9\xd8\xda\xc2;\xcfh&lt;b\x7f\x7f\x9f\xdd\xdd]n\xdd\xbaE\xdbERJxg\x86$",\x16s\x9a\xa6\xb50\xba8\x84\x9c\xa9\xaa\x8a\xd9d\x1d\xd1L\xcc\x89I]3\xaa&lt;\xd3\xb55bVk\xef\xa4H\xb7\\\x82\x081&amp;\xba\x18\xc1\x07\xc4Y\x12\xae\x08\xe3\xf1\x98\x9c"\x8beK\x973.TT\xa1\xa2m\x96\xe4\x14\xd1\x9cp\x02U\x08x\xef\xd0\x9c\xd8\xdc\xdc\xe2\x83\x1f\xf9\x18\xff\xbb\xff\xfc\xbf\xe4\x89\xf7\xbe\xafxV\xff\xefy\xb7\xfe\xe3^\xefj\xc3\xda\xdb\xdd\xe5\x9f\xfe\xca/\xf3\xbd\xef~\x1b\x11aw\xf7\x167\xaf_\xa7m[&amp;\xe3\t)%\x92*m\xd7\xb1X,i\xbb\x8e\xd9l\x8d\xf9\xfc\x88\x9c3\xaaJ\xd7\xb6\xe4\xactMC\xa8&lt;)&amp;\xd0D\x08\x81Q\xa8\xd9\xdeX\xc39\xa1\xf6\x9e\xd9t&lt;$\xf1Y\x95\xf9r\x81\xa6\x84\xb8@\xd3\xb5\xb4mK\xa7J\x17\x13((\x0e\x1f*\xda\xae5t_\x15_\xd5\x80X\xaf1vhN\x08\xe0\xbd\xc7{\x87\x13!8A\x9cp\xef\xa5\xfb\xf8\xcf\xff\x0f\xff\x15\x1f\xf9\xb1\x8fs\xf1\x9e{\t\xc1\x02\xcc\xbb\xa1z|\xd7\x1aV\xce\x99\xdf\xff\xbd\xcf\xf3\xb7\xff\xd6\x7fG\xb3\\\x925\x83B\xdb,\x18O&amp;l\xef\x9cf\x7fw\x8f[\xbb\xbbt\xb1C\x11\xc49b\xd7\x91R\xa2\xaa*bi$kN\xa4\xae\x03\x94:\x046\xd6g\x9c\xd9\xdc\xe0\xd2\x99S\xdc\xb3\xb3\xc3\xc6lL\x15\x04\'\x15M\xdbp4\xdf\x87\xac\xe4\x9c\x01\x07)\x13jOL\x996e\x0e\x9b\x86\x1b{\x87\\=Xpm\xf7\x80\xa3\xf9\x9c\x9c\xcd\xc8%T\x88\x04\x9c\x83f\xb94\x8f\xe5\x9dU\x94"8\xe7\x08U\xc0;\xc1\x0b\x8c\xc6c&gt;\xf6\xc9\x9f\xe4\xe7\x7f\xe1\x97x\xe0\xa1\x87\xd9\xdc\xdcb{g\xe7\xc4{\xb0we\x8e\xa5\xaa\\\xbdr\x85\x7f\xfa+\xbf\xcc\xde\xee.\xa1\xaa\xec)\xd6\x8c\xe2\xd8\xdb?\xe4\xe0pN\xce\n"x_\xd1\xa5H\x8c\x91v\xd9\xd06\r\xa1\n\x96\xcc\x0b\x88&amp;v6\xa6&lt;p\xf64\xef\xb9\xef\x12\xe7\xce\xec0\x1b\x8f\x08&gt;0\n\x01Q\x05\'\xa4\x9c\xc9qB\x9c\xd4tmC\xec\x12\x19!x\xb1\x9f/b0\x83s\xa8st\n7\xf7\xf7\xf9\xde\xcb\xaf\xf3\x83W^e\xefp\x01)S\x8f\x84\xaeM\x05\xbeHx\t\x8cG51E4g\xd6\'367\xd7\xd9\xbd}\x8b\xa6i\xf8\xdaW\xfe\x15\xef\xbc\xfd&amp;?\xfb\xf3\xbf\xc4\'~\xfcSLg3\xc6\x05\xf7:\xa9\xde\xeb]\xe9\xb1\x9af\xc9?\xfa\xfb\x7f\x8f\xbf\xf3\xdf\xff\xdf\xd8\xdc\xdc&amp;\x84@\xd34\xcc\x8f\xe64mK\xd3\xb6\xc4\x18\xc993\x99L\xadj\xccv\x90\xb1k\xc91\x11\x9cc4\x1e\xb1\xbd6\xe2\xa9\x07\x1e\xe0\xbd\x97\xef\xe3\xd4\xd6&amp;u\x15p\xc1\xa1m\x8bs\x0e\xf1\x0e\xa7\x80*9FR\x17\x89]C\xd7u\xa46\x82f\x92\x808A\\\x005c\x96\xbaFB\x05.\x90\x92rc\xf76\xdf}\xf1\x05\xbe\xfd\xc3\xd78jR\xc1\xcd\x96(\xe0\x83\'\x94\xdcK5\xb3\xb1\xb9\xc9\xf6\xf66]\xdb\xb0\x9c\x1f\x01\x10\x82gcs\x8bK\xf7_\xe6/\xfd\x95\xbf\xce\xcf\xfe\xfc/\xe2\xbd?\xb1\x89\xfd\xbb\xcec\xe5\x9c\xd9\xbd}\x9b\xef\x7f\xef\xbb\xe4\x0c\xa3\xd1\x88\xd1x\xcc\xe1\xd1\x11\x87G\x87t1Y\x1b\'E\x9a\xb6e\xd9\xb4\x08\x94\x84Z\xf1\xce!\x02[\xb3\t\x1f~\xcf\xa3|\xf8=\x8fpz\xeb\x14^\x15\x17&lt;J\x02\x8d\xa8\xf3hNh\x8a\xe0\x1d$E\xbb\x0eRB4!(hBT\xf1\xde\x81f\x88\x9d\xd1p\x9c\xc3\xe5\x80\xc4\x0e\\\xc2\x87\x9as;[|\xfa\x03O\xf1\xd8\xc5\xf3|\xed\xb9\x97\xf8\xdekoY\x9e\x87\x92#\xe4\x0c))\xde\t\xf3\xa3\xf9\xc0\xf5r8Bp\x88\x08\x97\x1fx\x88\xa7&gt;\xf0A~\xfd\x9f\xff\x13\xea\xaa\xe63?\xfd3\'\xd6k\xbd+\rk\x7fo\x8f\xd7^}\x85\xd1\xa8f2\x9d\xd9\xe1\xa82\x9aLa\xb94\xcf\x9429+\x9a")EC\xcbE\x08\xa3\x9a\xf7=\xfc\x00\x9f\xfd\xe0\xd3\xdcw\xee4\xe2=N&lt;\x1e\xb5*-\xb5\xd6\xb2\x89\t\xcd\t\xaf\x8a\x0f5\x04O\xee\x96\x08\x11r\xc2k\xc2\x05\xb1$=GT\x1c\x88\x92\xc5!\xce!\x9a\t*h\x8e\x80\xc39A\xaa\xc0\x853\xa7\xf9\x0b\x931\xf7l\xce\xf8\xc3\x1f\xbc\xc0\xb5\x83\x05]\x8cd\x0f)[c\xdc\xc7HV\xa5)EH=\x1a\x81f\x9a\xa6\xe1\xd1\xc7\xde\xc3\xf6\xf6)\xfe\xc7\xbf\xfbw8}\xf6,\xef\x7f\xfa\x83\xe6YO\x98q\xbd\xeb\x0c\xcb{\xcf\xb5kW\x89\xb1\xe3\xec\xd9s\x84\xaa"\xa5\xccr\xb1\xa4i[|\x08\xec\x1f\x1e\xd24\r\x82\xb3\xd0\x94\x15%\xb3\xb9\xb9\xce\xcf}\xe4\x03|\xec\xe9\xa7X\x9f\xcc\xec\xd0E\x10\x15H\x1d\xa4\x96\xe0\x03\x88\x82\x0f\xe4\xd4!)\x92\x96KD\xcc\xd3\xf9*\xe0\x11\x94\x96\x98#\x19E\x83C\xb3 \xde\x81Z\xae\xa59\x82&amp;\xf0\xde~W\xc1;O\x15*&amp;\x93\t\xef\xbd|\x89s\xebS~\xeb\xbb\xcf\xf3\xc2\xb5\x9b@O:\xb4\xa2@D\xa8\xeb\x9a\xa6mQ\x94\xe9d\xcab\xd9p\xfd\xda5.\xddw?\x8f&gt;\xfe\x04\x7f\xef\xff\xfd\xff\xe4\xdc\xff\xe5&lt;\xe7\xcf_\xc0\x87\x93u\x94\xfes\x9f\xfb\xdc\xe7\xee\xf6\x9b\xf8\xd3\\\x07\xfb\xfb\xfc\xe6o\xfc\x9a\xe5$\xa3\x11/\xbe\xf8\x02\xd7\xae]\xe3\xf0\xe8\x10\xe7\x1c\xf3\xf9\x82\xc3\xc3#\x83\x1aR\xc4\x89y\x8b\x07\xcf\x9f\xe1\xaf\x7f\xfa\x13\xbc\xff\xe1\x87\x98\xcdf\xf8`\xf9I\x08\x01\xc9\xd1J~\'%Q\xc7\x90t@T\x11\x01\'\xce\xc2i\xb6\xbfw"F\xc7\xd1h^\xb1\xe9\x10\xe7\x0c\xb9\xcf\x8a+\xa1WsFs\x82\x9c\xd0\x0c\x88\xc3\x87\x80\x13a:\x9ep\xdf\xce6\x9a"o\xef\x1eZ\xb1\xa1J\xec""\xc2t:c&lt;\x1e\xd1,\x1b\x9a\xb6\xa5\xaek\xa6\xd3\t\xaf\xbf\xf6*\xfb{\xbb\xbc\xfe\xda+\\\xbc\xe7^vN\x9ff&lt;\x9e\x9c(\xafu\xb2\xcc\xfc\xdfpY\xde\x94\xb8v\xed*\x07\xfb{lln\xf1\xd6[o\x12Sb&gt;\x9f\x93Sb\xdev,\xe6\x0bR\x8a\xa4d\x06\xe0C\xe0c\x8f&lt;\xc8O&lt;\xfd$\xe7\xcf\x9df&lt;\x9d\xd8\xc1\xba\x12\xc6b\x0b\xd9\xaa1R\x86\x94P\'(\x11\x8d\tbG\x8e\x11+:\x13N\x0c^H]g\xb9W6\x0f\xe5\xbc7jM\x8c\xe0\x1c\xe4`\xbfk\x82\xe4\x0b\x18\x9b\xc1W8\xef\xa9\xc7c|\xa8\xd8q\x8eO?\xf58k\xe3\xc0W~\xf8\x16\x87\x8b\x0e\xc4\x0c\xf7h1\xa7\x8eF\x10\xcc9s\xe5\xca;|\xfew~\x9b\xe0\x1c;\xa7N\xe3\x9d\xb0\xbf\xbf\xcf\x95w\xdea&lt;\x9e\xb0\xb6\xb6v\xb7\x8fi\xb8\xde\x15\x86\xd5\x1b\xd5\xe1\xe1\x01\xaf\xbf\xfe\x1a\xa7N\x9f\xe3\xb5\xd7^\xe1\xe6\x8d\x9b\xec\xde\xbeM\xdb\xb6\x80\xd2\xb5\x89\x98\x12\x9a\xad\x19\xbd6\x9b\xf2\x99\'\x1e\xe3c\xefy\x84\xd3g\xb7\x18\xafM\xa9\xea\n/\x14\x0f\x92\xc9\xb1C\x9b\x86\xdc\x95\x84\x1cH\xda\xa1(\xa9Y"\x80s\xde\x1a\xdc9\xa3dR\xb3\xa4\x8b\x11\xf5\x86;!\x0e\xe7\x12\x99\x8c\xa6\x0e!X\xc5\xd8C \xce\xdaF\x88Z\xd8\x05\xc4\x07\\U\xe3\x9c\x10\x04&gt;\xfc\xf0}\x8cG\x8e\x7f\xf5\xec\x1b\xdc&lt;l\xe8RD\x8f\x0eY:O]\x05\xbc\xf3\xc4\x18i\x96\r!x\x0e\x0f\x0fy\xe0\xc1\x07Y,\x17\xbc\xfd\xd6[lll0+4\xea\x93p\xbd+\x0c+\xe7\xcc\xc1\xfe&gt;\xcf&gt;\xf3\x03\xbe\xf1\xf5\xaf\xf3\xfd?\xf9.?\xfc\xe1\x0b\xec\xed\xee\x0e(\xb8fk\xa9\xa4\x14\x01ec2\xe1g\x9e~\x92O\xbc\xf7\t\xb6\xb6\xb6\xa9k\xa1\xaa\xad\xe9,\xaa\x96\xd8\xc7\x8e\xdc4h\x17!C\xc6\xc2\x9ajF\xbcC\xc0H}\x05\xc7\xf2!@\x8c\xb8\xba\xc6{\x8f\x92\xc9`9\x95FD\x93\xa1\xe7d\xb2Bl\rt\x15\xc9 \x8e$\x0e|\xc23\xb2\xdc\xcf)N T\x15\xd3\xc9\x8c\x87/\x9eg\x1cF\xfc\xde\xf7^\xe6\xfa\xd1\xc2\xfa\x95.\x92SdT\xd7 \x8e\x9c\x12)9R\x8c\\\xbf~\x9d\xef~\xeb\x9b\xb4\x8dA#\xc7\xd1\xf9\xbb}\x9d\x8cw\xf1o\xb8T3GG\x87|\xe3\x8f\xbf\xc6\xef}\xfewx\xfe\xb9gx\xe3\x8d7X.\x16\xa4\x94\xed\xe0Q\xda\x98H)\x01\xcal&lt;\xe2\xe7&gt;\xf4\x14?\xfe\xde\xc7Y\xdf9\xcdd&lt;\xc2{\xc1\x89\xe2\n\x1e\x95c\x87v\x11m:r\xeap"\xf8 \xa4\xac\x90\xc1;\x87\xab*r6\x88\x82\x14\xf1&gt;@\xedA#)\xba\xd2\x8e\xc9\x88xp\x13b\\\xa2"\xb8\xachJf|\xc9\xbc\\_D\xe4\\`C\x1fq\xaeB*\xeb\x11Ngk\x10*\xc6\xd5\x94\xd8*\x9f\xff\xfe\x0f\xd9k\x1a\xba$\x08\x10R\xb2\x08+\xf6\xdfQ\x95\x1b\xd7\xae\xf1\xbd\xef~\xd7\xc2`\xa1S\xff\xe8\x84\xd0\xdd\xbaN\xbca\xa5\x94\x99\x1f\xcd\xf9g\xbf\xfa+|\xe7\xdb\xdf\xa4\xeb:\xda\xa6!\xa5\x84h\x06,\xd9\xd5\x98\xf1\xe2\x18\x8f\x03?\xfe\xe4\x13\xfc\xc4\xd3\xefc6\x1d1\x9e\x8e\xa8B\xc0\x01Z\x12\xef\xd8\xb5h\xec\xd0e\x87\xe4\x84\xe4\x8c\xab\x03\xe4l\xad\x92\x92\xbck\x8a\x86\xa4\xe7\x84\xc6\xd6\n&gt;\x14\x04\xbc\x08I\x04\xcd\x8a\xc3h\xcb\xdeyRN\xe0\xc0\x13\x8a!d\xb2&amp;\x04A\xb2 \x9aI\xcd\x02\xf5\x01\x95\x0e\x97k\x08\x8e\xe0\x1d\xd3\xba"\xc8\x8c\xcb\xe7\xcf\xf0\x81\x83\x03\xbe\xf6\xca\xdb\xccc"e\xa5\xeb"u\xe5\x10\xdf\xf3\xce\x8c\xcc\xf8\xd6\x9bo\xd0u\x1d\xefy\xf2\xbd\xc4\x18\xef\xf6q\r\xd7\x896\xac\x9c3)E\xbe\xfe\xf5?\xe2\xd9g\x9f\xa1i\x1a\xda\xb6!\xc5l\x80\xa4f\x1c\xd6F\t\x95Py\xc7C\xf7\x9e\xe7\xc7\x9e|\x94zT1\x99\xadQ\x85`P\x01\t\x15;\xa0\x1c\x0b\xb0\x19&lt;R\x05b\xdb\xa2\xb1\xc1y\xc3\xa2\x14\x87x\x8f\x04\xc8\nN\x1d\xaer\x88\x02\x9a\x0c\x0ep\x82\xc3c\xa9S&amp;\x93\xc8\x80sb&lt;-U\xbc\x0b\x08\xa0\x9d\x01\xa7\x92e0\xf0\x98!;{0\x84\xaa\xe0i\x16\x1a7&amp;#\x1e\xbb\xb0\xcd\xfe\xb2\xe1;o\xde k\xa6M\x8a\x02!;\xbcs\x05\xe8uh\xce\xec\xde\xbe\xc5\xb5\xabW\x18\x95A\x8d\x93p\x9dx\xc3\xbay\xe3\x06_\xfb\xca\x97I\xe5i\xd4\xac@F\x94\x01\xdcD\x129G\xb6fc&gt;\xf4\xe0e\xceom0\x9d\x8c\rJ(\xa1RSF\xa4\xff\xdd\xe1\xad\xa5gF\x953\xa1\xaaq\x95\x03\'\x85\xf9\x90@\x1cU\x18\xe1\xb2B\xea\xec SD\n\xf9OTqY\x0c\xa1\xd7\x8c\xcfR\xf2"W\xa6\xa13`lS\xbaDR\xf3x^\r\xee\xea\xbaH\xce\xa9\x84\xe8\x80x\x87\x17aT\x07\xcelm\xf2\xfe{#W\x0f\x8exg\x7fa\xe1/\x1b\xf7K\x0b\xcd\xd59C\xf9\x9b\xa6\xe1\x8d\xd7_c\xb1XPU\xd5\xdd&gt;6\xe0\x04\x1b\x96\xaa\xd2\xb6-\x07\x07\x07\xdc\xbcq\xa3\xf4\xf9\xba\x92S\xd9\xc1\x04\xef\xe8\xbaH\x8a\x1d\xa3*\xf0\xc4\xe5K&lt;|\xefy&amp;\xb3)U=\xb6\xdcH\xf3\x10\x02\x8d\r\xaa\xa8\x13\xc4Uh\xd7\xe2\xaa\x8az2\x01J\xe8\xf3\x0e_\xbeG%\x9b\xe1\x92\x10\xa9!g\xb2\x0f\x88+\x1eIA\xbd\'\x13\xc1\x81d\x07\xb1%\'#\x0b\xf6XXV\x87T\x15\x92\xcd\xdb\xa5\x9c\xd0.\x92\xc5\xa1]\x87\xf7\x80fDjD\x95\xe0\x1d\xb3\xf1\x84s\x1b\xeb|\xf8\xfes\xfc\xc1\x0bo0o\xcc#\x82=\\V6X.\x95sbm\xb6\xce\xdd\xcf\xacV\xd7\t7\xac\x86\xa6i\xd8\xdd\xbd\x8ds\x06,\xe6\x9c\xc9\xc9\x10\xea6v\xb4MG\xce\x99\x8bgO\xf3\xe4\xfd\xf7\xb3\xb9\xb6F5\x1e\xe3}m^\'\x97\xf1-q\xe4\x94\xc9\xd8\xa0\x84x\x8f\x0fS\xf3.j\t\xb66\x19U;&gt;\xe7\x1c\xf8\xc2\x7f\x02$Cv\x0e![\xd5\x97\xa2y\r\xf1dU\\\x08H\x06\x91\n\\\xb6\xa1\x8c\x1c\xad\xf8\x0b\x15\x9a3b\xe9\x17\xea\x15Q\xc8]\x07\xe2\x88\xcb\x05R\x8d\x91,\x10\x1c\x0e{h\xd6\xa6S\x1e8\xb3\xc3k\xb7vy\xe1\x9d=\x92\xf6\x80HyS\x96\xee\xe1\xc4q\xe5\xca\xdb\xcc\xe7G\xcc\xd6\xd6N\x04\xa5\xe6\xc4\x1a\x16\xc0h4\xe6\xf5\xd7^\xe5\xe6\x8d\x9b\xa4lUV\'F\xf1\r&gt;\xd0t\xc6q\xda\x98\xcdx\xea\xa1\x07\xb8\xb0\xbd\xcdd2\xb1\xfc\x033&gt;\x0cH\x1f@F)\x7f\xf6\xd5\x88\x10jD \xc7\x0e\xba%\xae\x1aY\xce$J\x8e\x9d\xb1\x13P\xc0!R\xc0OU4Y%)*P0/Q\xcb\x07I\x19m#9F\xe6\xcb\x05\xa3\xba\xcf{,t\x8a\x0f\x85\x97\x05!9RVC\xf1\xdb\x96\x9c\xd4\xbc\x968\x82\xf3\xe4\xd1\x88mM\xbc\xef\xd29\xae\x1f\xb4\xec\x1eu}\xc7\xa84\xd6\x01\x11\xc6\xe3\t\x17\xef\xb9\x97[\xb7nq\xfa\xcc\xd9\xbb}l\xc0\t6,\xe3W)/\xbe\xf0&lt;\xfb\x07\xfb\x03\x87*\x95\x1c)ee\xb1l\xf0\xceq\xe9\xfc\x05\x9e\xb8\xe7"\xebk3B\xa8L\xf1%\xa7\xc2T\xc8\x90A\\)\xc3s\t \x19raB8\x94z\xb2\x89hBs\x87\xe6\xcez\x88\xceY\xbfQ2\xc4hp\x01\x80\xd4T&gt;\x90\xcb\xdf\t\xf6c\x84\x04\x88%\xfe\xde3\x01P%\xc5D\x8a\xf6\x9amj\xc8\xaaC\x01\x10,[\x03\x1c1u\xe4\xb6\xb0LE\xf0\xde\x13\xaa\x8a\x0b\x9b\x1b\\:\xb3\xcd\xe1\xf2\x1a*n\xe0\x9e\xd9}\xb2\n\xf6\xd4\xce)N\x9d:ubh4\'\xd6\xb0\x8c\x7f\xbe\xe0\xca\x95+\x96\xac\x8a\xb0\\,\x11\x11b\xceC\xa3v}:\xe5\xb1\xfb\xefekk\x8d\xe9tb\x00(\x82\xf3\xceF\xb9\x14\xf0\x90b\x87\xf3\x1e\xd4f\x02U\x8d\xfd\x10\xc63BU#)\xa3\xda\x99\x17Hb\xb9\x98\n\x9a,t:o\xe1\xcc\xc2\x9f\x90Sg\xa1\x16\xc1\x89\x90PH\t\xb2\x92\xba\x8e,\x16NU\x01\x97\xa1T\xa7Ua\xb1\xe6B\xc9\xd1\xac\x88\xfaA\xfa(\x93\x8dQ\x1a*\x10\x18\xd7#d\xaa&lt;yv\x87wn\xeeq{\xd1X\xbfQ\xc4\xbc\x97\xda\xb4P\xdb\xb5H)&lt;N\x82q\x9dX\xc3\x02h\xdb\x96\x14\x13UU\x1b\r\xd8\x06\xfeh\x9a\x86\x94\x13!x\xce\x9d\xd9\xe2\xf2=\xe7\xd9\xd8\xd8$T\xb5!\xdf\xdeC\xb6!\x08\xf3:\x18wJ\x9c\xe1N\xc1S\xd5cK\x98s\x04\x19!\xce\x17n\x94\x02\xc9\xf2\xb8l\xf8\x13\xdeY\xe8\x0b\x15\xce\\\x16\xce\x19\xd4\x90\x93\xb5z\x00\xc4G\xcc%\x1a\x9f\xdd9W\x98\x15J.`\xaa}78\x81\xba\n\xa4\x98\x88\xad\xb5\x97\xd49\xbc\xaf\xac#\xe0\x04\xf1\x01q\x9e\xaa\xaa9\xbb\xb5\xc1\xe5\xb3[\xec\xbdv\xd5\x9a\xdf\x18\x88\x0b\x10S\xcb\x8d27y\x12\xf2+8\xc1\x86%"\x84\x10H)\x11c\x01*\xc5\x92k\xc5n\xead4\xe2\xd2\xf9\xf3\xeclm2\x99\xcc\xa8\x82\xc7\x89\xd8a:!\xa8\x92s\x04\x04/\xde\x0c@@\x9c\xb3\xe4;\xa7\xc2\x972\xbc\xaak\x17fl)\x1a\x80\xaa\xc9\xaaP\x1f\x18\x98\n$\x9c\xf7\xb8\x0cN\x05-\xd6\x9es,\x08\xbb\x89\x8f\xf4Tfb2o&amp;\x82&amp;-\xb1K\x10\xe7\x01\xc5\xd7\x96\xec\xc7\xb6]\xd1mraU`\x04E\x1f\x02\x93\xc9\x98\xfb\xcel\xf1\xd6\xcd=\xae\x1f.\xc9\xfd\xe1\x89e\x937\xaf_\xe7`o\x8f\xcd\xcd\xad\x13a\\\'\xda\xb0\xba\xae\xa3\x8b\x91zT\xd36\xd6hN\xd1(%\x0e\xc7l:\xe1\xc2\xa93L\xea\xb1\x85\xc0\xc1\x00:p\x0e)\xcc)\xcd\xb9\xe4J\n\x1e\xb2&amp;4f+\xffSGN\x11\x17\x02\xce9\x9c\n)\x16\x03V\xc5!\xc5X\x12\xb9\x8d\xf8\xc9\x18\xe7&lt;B6C\xc9j\xc6\xa8\nI\xc9]\xb2\x01\xd6\x14\xcb +\xc5\x13\xa6!G\xcb9Qx:\xe6\xbd\xbc\xe0*{\x88\x9c\xf3\x88\x0b\xc6p.\xb1\\E\t\xc1\xb1\xbd6\xe1\xec\xe6\x94[\xf3\x86E\xdb1\xae\x82U\x89Y\x99\xce\xa6lnm\x9f\x880\x08V0\x9d\xc8K\x0b2\x0e\xcat:\x1b\xcal)\xbd\xb2\x9c\x95\xad\xf5\r\xb677M{\xaa\x84\r\x9cC\xca\x10j\xaf\x9f\xe0Cm\x14\x17\x11\xdc\xa8\xb2\xb6H\x8a\xa0\x11rD\x82\xc3\x05\x03\x16s\xec\xc8\xa95\x0e\x15Z\x90x-\n3j\xd4\x1aU$\x04\x9c\x1f\x99!\xa8"e*\x1agI\xbf\xf3\x81P\x8fq\xa1\xc2\x87\x8a0\x1e\x9bQ\x8e\n\x1b\x95L\x8a\x1d\xa9]\x90\x9b\x06W\x80U\xef\x9ca`9\x1b_\xb9\xc8\x06 0\x19\xd5l\xaf\xcf\xd8\x9aM\x8c\xf7\xa5\x86\xd4;1\x9e\xda\xc1\xfe\xfe\x10\x96\xef\xf6ub=\x16\xaaT\xa1b6[\xc7;O]UT!\xb0X\xccq\xcb\x86\xe9\xda\x8c{\xce\x9cac6C\x82\x19\x94jF\x1c\x86)%\x87q\xdc=\x0e%\xd1\x87\x19\xcb\xbbB-\xe6a\xa2\x92\xda\xd6\xc6\xaf\xca\x8f\x16\x1f@\xd2\x00\xae\xa6\x023\xa0\x90\xda\xc6Pv\xadA@\x1d\xe50K\xde\x15\x0c\xc0T\xcc\x83\x05\x1f\x88\x1a\x87\xfc.\xa5\x84\xaf\x02*\xe5Q\xc9\xdeB\xb7\x02\xc9\x06h\x153*U7\x84o/\x8e*\xd4\x9c\xde\\c\xed\xd6&gt;k\x8b\xd1\xf0\xb0eU\xae]\xbb\xca\xed[7\xd89}\x8a\xe9\xf4\xee\xd3gN\xaca)6(q\xee\xfcy\xbe\xf3m\x83\x18B\xf04\xcb%\xb3\xd9\x8c\xcd\xd9\x1a\xa7\xb6w\x98Lf\x04o\xde\xc6\xf9\x80\x13\xf3v6\x18\x01\x0e\x8fd\xb5\x8aO\xc6\xa0\xd1\xc2E\x17\x11\xf1\xf8z\x84zo\t\x7f\xb2\xe1\x06)}\xb8\x1c\x1b\xeb\xeb5Ks^\xb2\x1a\xc5\xd7\x98,\xb4:\xeb\xf6\xa9\xf7\x90\x8c\xf0G(\x7f\x87\xe5oN\xbd\x85pl"\xc7\x86~\xb2\xe5`\xde\x9b\x18\t\x82\xab\x84\x9c\x95\xac\x19\x17B\xc9\xdf,$\xfb\xaa\xa6\xce\xca\xa8\xaa\x98\x8eG\xacO:\x0e\x97\x8d\xf5&amp;\x15\xf6n\xdff\xf7\xf6m\xa6\x93\xe9]7*8\xc1\x86%"TU\xc5\xf9\x0b\xc6\xe7\x96\x92;\x8cF#RJ\xec\x9c\xdeam}\xdd\xbcS\x1f\x0f\n\x1dX\xb0\x96\x8d\xf8@N\x8dy\xa9P\xe3\xb27n:\x80\xcf 6\x95\xe3]`\xf5\xf8\x97\xeaQ\xc1\x95:.\x84\x8a\x1c\x8d\xab\x95u%\x1a"U@\x9d\x85\xc7\xbe\xaa\xec\xabOq\x1er"\x17\xda\x8c\t\x86\x08\x92\x93y@1\xd8c\x80\xcf\xc1\n\x80l\x89\xbf\xe6\x04\xd1!\x95/\xd0I6\xaf\xed=\xc1\t\xe3\xbab\xd9\x19\xdd\'\xab\x1aEG31E*W\xdf\xed\xe3;\xb9\x86\x05\x90r\xe6\xf0\xe0\xd0\xf0\x9f\xaa\x06,\x94\xe0&lt;\xdb\x9b\xdb\x06C\xa8aZF\xb6\x030\xaf\x91\xb2\x92\xdb\x06\x1f\x1c\x12\x04I:L\xcc\xa8&amp;\xf3&gt;!P\x05\x8fH0\x16\xa88R\x9f\x94\x03h\xc2Y=\x80\xa8\x90\x11\xb4\xeb\x06\x8cLR_\x18\xa8\x11\x00\x9d/a\x0c4\x0bdA\xa3\x8d\xd0S\xf8\xf46\x1d&amp;\x80G\x82\x94\x1c*\x92Eqb\xc6\x99VV\x0e)\xe1\\E\x99\xb9f\\\xd7\x8cB(RI\xc6\xe7w\xc5@EN\xce\xb4\xce\xc96\xac\x94\xd8\xdf\xdf3\xbaH]\xe3TY6\r\x93\xc9\x98\xf1t\x8a8\xb1\x1c\xa8\x00\xa8&gt;x$\xa9y\x89\xd8!.X\xdb\xc5\xb8+\xc6B@q\xce\x13$\x98L\x91\x9a\xb1\x89\xab\x8d\xc8W\x0c2w\x1dZ\xb2.!\xe2|\xc0\xfb@r\x1e\x15E\xbb\xbe=\xe4Q\xc9\x03&lt;\x90\x8bf\x03\xdd\xc2\xc8\x84\xd9&lt;\xa8*\xa8\xd8`Fo\xa8\x0e\x01\xef\xcd\xbb\xa5h&lt;+\xa1\x84F\x83E\x12\xc6\xb5\x17\x1fp\n\xd3P\xb16\x1d\xe3\xdc\xbe\r\xc9\x8a\xe9&lt;\xb4M\x8b\xf7\xce&gt;\xc3\t\xb8N\xc6\xbb\xf8\x9f\xb9\xaa\xaa\xe2\xcc\x993\x08BUY\xe7\x7f2\x9dq\xfe\xccYN\x9f\xbd\xc0\xb86x@TK{\xc6\r\xa3\xeen4\xb5\x83C\xed\xe0\xc5\xda:\xce9&lt;&amp;QD\x7f\xe0%\xa1\'&amp;C\xdb\xcbD\x8e\xa8%\xd9)\xaf\x92w_\xbbB\xb4k-l\xa9Z\xf0\xf5\x1e\xed\xdaa\xaa\xc7\x87`m\x9c\xd2\x16\xb2\x84\x1e\xb2Z\x83Z\xb3%\xfe\x14/[\xf9`\xad\x1e\xa1\xe4Y\x85\x1dQ\xa8\xc6V\x19*\xa3\xbabkT1\xae*\x16m\xc2;!\x97p\x1aK\x8b\xea$x\xad\x13mX\xde{6\xb7\xb6P\xa0\xf2\x9e\x94\x12\xb3\xe9\x94\xed\x9d\xd3\xe6\x1d\xda\x0e7\xae\xa8T\xa8\xb0P\xe6\x827#\x11\xa3\x05\x93\n\x1a\x8e7\x04=\x1b\x0eF\x8a\xe4hm\x9d\x9c\x13N}\xdf\xd5\x055D\xdd\xf5}B\xdc\x90\xa4\x8b\x80\xf4\xdc,1\xf03\xa7l|x\x1f\xc8\xb1%\xa6\xd6\x84H\x82X\x12\x9f\x1d\x9a\xa3y\xd22z\x88\x08\xea\x1c}r\xee\xc4z\x86"\x8a\x1b\xf08\xfbZ-^\xc9\xf9\xc0H\x1c\xdb\x9b\x1bL\xeb\xdb\xdc&lt;Z\xe0\xc5\xe3\xc5*\xe8\xcd\xcd\xcd\x13\xb3\x14\xe3D\x1b\x96\x14\xea/\xaat]\x87\xe6\xcch:CU9\xb8q\x83\xb5\xedu6\xa6S\xd6\xa6S\xaa*\x14\x90\xd4\x93S\x1a\xe8\xc5\xe6\xc0\x8c&amp;\x93\xda\xd6\xc2Pi\xc7\x18\x99\xcf\x0e\x0c\x85L\x19\xb2\x10\x8fV#\xba\xa5\x11\xec\x04g\xa6Y\xd7\xf8l\xc3\r\xea\x84\xdc\x9a\x16DB,oJ\t5\xe0\xbfP\xfc,W\x9aw\x91.*1\x19\x9f\xac-=\xc6Q(9\x99sx\xc0\xa3\xe0M\xc7TJ\xb5\x97\x15\x1b\xd9/\x9e\xab\xaa*v6\xd7\xd9\\\x9b\xf0\xe6\xed\x03\xc0z\x921%\x8e\x0e\x0f\x87\xb6\xd7\xdd\xbeN\xb4a\xe5\x9c\xd9\xdb\xdb\x03 v\x91\xd1\xa8\xe2\xcc\xce\x16)u\x88\x136\xd6\xd7\xd8\xdc\xd8\xa0\xaa&lt;8\x0f\x12\x8cY\xea|\xa1\x97\xc8\x908\xf7\x95\x1c\xe2\x8c!*\x9e\\\xd5\xa4e\x0b\xce\x93\x9bH\xdb\xb5tm\xcb2.q\xe2\tjs\x85\xa1 \xdf5\xady\x0f-\xe1\xca`N\xba\x94 \x05#\xfe\x95\x91\xfeN3m\x1b9j\x12{\xf3%\xfb\x87\x0bv\xdb%9f\xa6\xe3\x1a\xe7\x03\x1b\xa1bTC\x15&lt;U\xf0x\x07U\xf2\x05\xe7r\x85\x91\xe1lt\xac\x18L\xf0\x9e\x8d\xe9\x1a\xe7\xb66y\xf1\xca\xad\xa1`I)q\xf3\xc6ur\xceC\x0f\xf1n^\'\xda\xb0\x04\xa8kk@7\xcd\x82\xf5\xb5)A\x84\x1b\xb7o\xb3~\xfa\x14\xa7\xb67\xa9\xbd+\xb2\xda\x86E9\xe7\xad\x9d"J\xce\x18\xadX\xcd+\xb9\xe0HM\xcb\xa2Y\xd0\xe5L\x13;\x96GKn\xee\x1fr\xf3\xd6-\xe6\xcb#4G\xc6NX_\xdfd}:\xa1r0\t\x81\x90@\xb3\xc7\x87\x8a\xda\x05\xb2\xeb\x88N\x88\xa2t\xa9!6J\x10\x81\x08ML\xcc\xdb\x96\xc3\xf9\x82\xeb\xf3\x86\xdd\x83#\xf6\x0e\x0e9l\x1a\x8e\xa2\x89\xdez\xef\x99\x8e\x02\xeb\xa3\x8a\x9d\xd9\x84\xd3\xebS\xea:\xe0\xc5S\xa7H\xa8\x02\xd5x\x028\xc3\xb5\x9c\x0eT"\xef&lt;gw\xb6\xd9\x9c]\xe5`\xd1\xd0\xa5D\xecZ^{\xf5\xd5\x01\x96\xb9\xdb\xd7\x895,\xe9\xf9PN\xc81\xb2\x98\xcfI\x9b\x9b\xdc\xda\xdb%\xa6\xcc\xd8;f\xe3\x11\xe2M&gt;HJ\xfe\x83(\xce{\xa3\xa5(\xc4\x94\taDV\xa5k;\x16\xcb\x85\xc9c\xef\xddbww\x8fk\xb7nr\xe3\xd6m\x8e\xe6K\xbc\x17FU`V\x05\xda\xb6!\xb6\xebL\xa7S\x18\x8d\xa9%\xe2\xb2g\x1c\x82\xc1\x9e\xceAU!\xb9\xc5\xb5\x8e\xd8\xcc\x91\xaa&amp;\'X.\x17,\x9b\x86\x83f\xc9A\x91\xfc\xf6\xce\xc2\xa5\x17\xc5\xd7F\x9f\xa9\x83\xc7\x05G\x1b;n\x1d\x1e0\xaak\xc6UE\xed&lt;\xe3\xc9\x18\r5\xa1\n\x96\xfa\x15\xfd\x070|mc4\xb1?\x8b\xf1\xecAy\xe9\xa5\x17\x88\xb1\xb3B\xe7?!\xef\xff\xfa\xab\x9f~\xde\xdf\xdb\'\xa6h\x8c\x045r_.e\xf9\xc8{|\xa8\xf1R\xc6\xd9\xc5#@\xd2d\xf3}ue&lt;(\xe7H]\xc7\xbci88\x9as{\xf7\x16{{\xbb\xbc\xf5\xf6\xdb\xdc\xda\xbb\x85w\x81\xd9d\x84jd6\x191\x1bU\x8cF\x15"\x99*\x18+\xc2\x8djK\xc6\xbd\'\xe7\x96\x98\x95\xaa\x9e\xa0]\x8b\x17\xe3yi\xd7\xd1\xc6H\xdb.h\x9a\x8ef\xbe\x84\x9c\x19\xd5\x96tO&amp;\x96\xdb\x8dF\x15\xd3\xaa\xa6\xf6\xc6Lh\xbb\xc8|\xb9\xa4Y.H13\xf7\x8euq\xa8\xaf\x98\x86\n\xdfc\x14\xd927q\x06\x1e/\xbb\x8e6\xa5"e\xe4\xb8}\xeb\x16m\xd3\x14\xcc\xef\xee^\'\xd6\xb0\xc0\xbc\xd6lfx\xd5db\x9a\xa2\x02\xc6\xc5\xf2fDNAB(\xc9\xb8\xdah:VI9\xef\x81L\x8c\x89E\xd3\xb1l#\xaf\xbf\xf9\x16\xfb{\xd7\x10\x85s\xdb\x1b\xdc{f\xa3\x8c%(\xe4\x96\xb4\\\xa0\nu\xa5\x8c\x9c\xa2\xcb9\x8c\xa6$\r\xe8h\x8a\x1bM\xa9\xfd\x84\xa9w\xc4\xf9!\xa1\x9e\xc2\xb2a\x99\x16$M\xb4\xed\x92\x83\xe5\x9c\xdb\xfb\x0b\x16\xcb\xd6\x08\x7fU xG]M\x18\xd7\x81\xba\xf2\x98\x02R\xc2\xe1\x18\x05\xa1\x0e\x8e\xa6\xcb\xa4l\xa0\xeb|1\x071\xd1\x92\xe9\xb8\xd0\x9b\r\xaf\x80\x9c\xa9\xbd\xa7\xf4\xc6\x07\x0e\xea#\x8f&gt;&gt;\xec\xea\xb9\xdb\xd7\x895,)\xd4\xdc\xb3\xe7\xce\x11| I"kf\xd9%\xc6U\xa1\x1fSj\xf7\xa4h\x10R\x190M)\xda\x14s\xb2\xd9\xc3e\xd3\xb0wp\xc0\xd1\xe1\x01\xa3\xc9\x84\xb3\xd59\xc6\x01\x9c6H\x8eT\xce\xa1qI\xbb\x8c\xb4\xc9\xb3\xe8"\xb9Ypx\xb8\x8f\x8a\xc7I\xa0\x1eO\xd9\xbep/\xdb\xa7/\xd8\xe0h;G} \x9a\xbc\x8c\xb5S\x9a\x96\xa3\xc5\x82\xb7n\xecq\xed`\tdj\x810\xae\xf1\xf5\x88eL4\x9d%\xef\xeb\xd31!x\x02\x0e\xd5\x96\xa0\r\xea\x85\x06P\x0co\xb3\xbet.a\xcd$/\x01P\xc5\xa9%\xe9\xaa\xa6l\xd3\x1509v\x1d!T\xff)\x14\xfe\xdb\xae\xd9tF.\xa86\x00R\x08t\xda\xd3FJ\x1eV\x84@T\xecF;\xb1\x9b\xdd4\x0b\x0e\xe6G$M\xd4U`kc\x03\xd1\x19^\x1bHeL&gt;+m3g1\x9fsx0g\xde\xb48\t\xe4\x1cic\xc7\xb2\xe9h\xb2cr{\x9f\xf5\xd3\xe79\xbb\xb5\x8e+\x93\xd2\x9a\x13I2\xd1\t\xad\xc0\x8d\xc3\x05\xaf]\xdf\xe5\xb0\xed\x90\xe0\xac\x01\xbe\xbf@\xea\x9a\\`\x8d\xca\x07\x02\x99qp\x9c\xdf\xd9\xe0\xcc\xc6\x94\xd1x\x06\xb1\xa5I-\xa9\xeb\x10\x1c\xc994O\xd0.\xe1\n\xf7J\xb2\x92\xbc\xe1a\x953\x9av\xe5\xac\xb1\xfd\xf6[or\xb0\xbf\xcfh4\xb6\xd4\xe0.^\'\xde\xb0rayzgD8\x15a&lt;\x99\x15\x9aLaf\xf6\xd38b(\xb4\x88\xc1\x0b\xed|A\xd3.H\xa5\xbf\xe7G5\xb9Y\xe2$\xe0rb\xd9$n\xdc\xde\xe5\xd57\xae\xf2\xce\x8d\xeb\xec\xcf\xe7\xcc\x9b%\x958\xc6\xce1\xf5\xc2lb\xf3\x84\xcb\xb6c\x7f\xde\xf2\xca+\xafr\xea\xc9\xf7\x14\xae\x97\x10;[F\x90c\xa4m\x1an\xef\x1f2_.\x88Qi\x1a\x9b&amp;\xaa\xc2\x88\xdb\x87\rMn\xe8r\xa6\xae\x03\xf3\xa39\xeb\xe31W\x0e\x16\x9c\x9e\x8d\xb9gk\xca\xb9SkL&amp;\x9e\xce\xb5\x08\x82w\x8a\xc4\x96\\\x8d\x0c\xe2\xd0\x84S\xd3\xe8\x12\xf1\x8c\xcb\xa8\x98\x17!\x8bp\xeb\xc6\rb\x19\xda\xb8\xdb\xd7\x897\xac*\x04rJ\xd4\xa1\x02\xec\tE\x95.\xe6BWV\xee\xa0\xb6eEK\xb2\x9eS\xb2\x91\xad~"fT\xe1D\x89\xcd\x92\xb7^{\x8d\xef\xbd\xf2*/\xbe\xf16W\xf7\x0el\x0068\xc6\x95cq\xb4\xcf\x85\x8dM&lt;\x8ef\x7f\x8e\xe4L\xe5\x85\xe980\xdf\xdb#u\x91\x10\x04\xc4\x06Q\xf3QoX&amp;\xaa\xeb\x9dP\xd5\x9e\x9c\rW\x9bL\xa7\\\xdd=`&lt;[#\xe4LL\x1d.\x04\x9a\xac\xec\x1d.\x98\xcf\x97\xe4\x9c\x88\xa9\xe3\xfc\xe9-\xea\xba\x02\x15j\xef\xf0dR\xb74\x07\x14\x9cMS\xe7\n_\x94\xa2\r\xb1W\xbc\x08\xedb\xce\x8b\xcf\xfc\x80\xf3\x17\xee\xb9\xdb\xc7v\x82\r\xab\x889_\xbcp\x81S[\x1b\xcc\xe7\xadm\xe5R\xa5\xf66\xea^W\xc1\xe8\'h\xe9\xc1\xf5\xf4\x15\x9bVicC\xdb5\xc4\x94p\x92\xe8\x9a\x96xp\xc8K\xcf\xbd\xc8W\xbf\xf7=n6\x1d\xe7\xef\x7f\x94\xd3\xef9\xcb\xde\xdeu^}\xee\xdbT.1\x9d\x8e\xb9\xe7\xfc\x05\xaan\xc1\xf5\x1b\xb7\xa8Gc\xb6\xb67\xd8\\\xdfd\xec2\xed|\x8e\x1b9\xbc\x0b\xa8H\xe1f9\xb28\x82\x13\xd6\xc6\x81eTn_\xdfgm6\xe5\xf4\xd6&amp;\xef\xcc\x97\x1c\x1c\xec\xd3v\x11_\x07*\xef\xd9\x9e\xce\xb8\x7fm\xca\x0bo\xbd\xc3+\xef\xdc\xa0M\x9b\x00\x9cZ\x1f\x1b5Z\x1c\xb5\x9fP\x85\x80\xe6\x0eI\x01\xa3\xbfZ\x83Z\xcbg\x0f\xe2\xa8\x02\x9c\xdd\xd9acc\xe3Dx\xac\x93\x81\xa6\xfd\xc8\xd5o\xf1j\x17\x0bvvN\xf1\xbf\xf9\xcb\x7f\x15\xb2\x0e\xdb%\xe6Gs\xba\xce\xa4\x19)\xf9\x94\x93"\x92\x91L\x99o\xb9\\p\xb0w\x8b\xe5rnS9\xce\xd3\xed\xed\xf2\xcd\xaf\x7f\x9d\xaf|\xfb\xdb\\\xbf\xbd\xcb\x13\x8f&lt;\xc1\xc7&gt;\xf6\xd3\xcco]cy\xebm6&amp;\x81\xd9t\xcc(TL\x830r\xca\xe6t\xc4\xb8rlnop\xea\xfc\x16;\xa7\xb6\xc9@l\xa3\xed\xdd)\xf4g\xcd\x19\\`:\xae\x98\xd4\x81\xb5I\xcd\xa5s[\x9cZ\x1b\xd3\xee^\xe7\xfe\t&lt;\xbc3\xe1\x91s\x9b\xdc\xbb5\xe3\xdc\xb4\xe6\xfc\xd8\xe1\xbb\x05\x0fl\x8e9\xbb1\xa1m[^\xbf~\x8b\xbdyC\x97\x95\xf9\xdc$/\x8d\x9b\xd5A!\x0b\xf6\x9c\xff\x9d\xd9\xda@C\xf3\xc0\xf9\xb3g\xb9\xe7\xdeK\xd6\n\xbb\xcb*\xeb\'\xd3c\xa9\xf2\xf2\xb7\xbe\xc93\xff\xea\x0f8X,\x99\xb7\x1d&gt;u\xa4\xdc!T\xa8\xc0d:\xc1\x88\'\xae\x0c\x97\x16\xceT\x8e\xa4vI\xf0\xc2\xda\xfa\xba\x85N\'\x1c\xdd\xb8\xc6\xf7\xbe\xf5\x1d^}\xf3\n\xe7/\\\xe4\xf1\xf7l\x12b\xe4\xe8\xf9/\xf3\xf0\x1a\x1c\xb8)~kDE\xa6\x12\xc5\xe5%\xaev\x8c\xb6\xd6q\xa1bsm\x9d\xb5\xf1\x1a\x9b\x9b\xdbT\xa3\x11\xc1\x0b\x1c\xedAg\xfc\xad\\\x86\'&amp;\xbeb\xad\xaeXd3v\'\x9eQ]\xb1\xee\x04\xe7\x94Pf\x1bm\x80\xc7\x86Y\xc7\xd3\x19\x9b\x0e\x16]&amp;i\xe6\xd6\xe1\x11\xeb]`c\x14\x98\xef\xedS\xe3\xf1cl\x9ePm\xbc\xdf\xe7\xcc\xe6dL\xe5\x1cA \x88\xf0\xfas\xcf\xf0w\xfe\x9b\xff+\x7f\xed\xff\xf4\x7f\xe6\xb1\x0f}\xb44\xe3\xef\x8e\xf7:q\x86\xa5\xaa,\x0e\x0e\xd8}\xe5%\xf2\xd1\x82\xf6\xe0\x80\xa3\xbd]&gt;z\xefy\xbe~\xe5\x06\xea&lt;;\x9b\x9bEt?\x14vh\xc0I\x80ld\xbb\xa8\x89\xe5\xed\xab\xb6\x82D\xe1\xf0\xe0\x80k\xef\xbc\xcdtk\x9d\x0f\xec\xac\x13|\xc5hm\x8b\xdc5h\xd7\xb09v\xc4\xb5\x1aG\xa4Y\xce\x891\x924\xd35\x0bb\x17\xa9\'\xebl\xcf6\xd8\x18M\x19\x87\n\xc96\x12\xe6BMv\x81P\x8d\x08\xa3)n\x1e\xa9\xab\x11;\xa31\xb7\xdb\x96.Bl\x96\xe4\xb6e2\x19S\x8d\x02\x95&amp;D\x85\x98\x81l=H\x82C\x05\xc6c[cG\xd71rB-\x81\xf1hB\xbblA\x13\xa3\xa9G\xba\xce\x84Jrf:\xa9p\x9aIYX\xabk\xd6\xc9\\\xfb\xe1\xf3\xfc\xd1?\xfde.=\xfc(k\xdb;w\xed\x1cO\x9ca\x01\xec\xbd\xfe\n\xcbg\x9fEo\xecr\xee\xe2\x05\xb6\xd77\xe8\xf4^\xfc\xe9\xeb\xbc\xb3\xbf_\x84\xf6}\x99\x88)8\x96$\xba\xd2\x14\x0e\xbef4]\xa7\xbdy\x95\xc5\xc1\x111)\x1b[\xdbL&amp;#*\xefH\xcd\x92\x94!\x87\x11\xd1g\xb4\x12\xa2\xed\x06\xc0\xc9\x84\xa3\xa3#\x9a\xbd\x03\x9a\xe5\x82\xc9\xe6\x0e\xe7/\xdc\xcb\xe9\x8dM\xa6\xeb\xeb\xd4\xe3\xb1\xa9\xff\x89G|\x85\x13OU\x8d\xa8\xeb\xc8h\xd4\xb2l[\xc6\xe3)\xdbE\x1f~_\x96\xa4h[\xc2\x1c\x15\xf5\xb8&amp;xO\x1d*\x9b\xc8)\xfa\xb8I\x1c\xb1\x0c\xd0\x8a\xaf\xa9\x9d0\xad\x02\xe3\x10\x08\xe3\xda&amp;\x7f\xc4\xd9\x94w\xa1MO\xc6cB\x15\x8893\r\x15\x8f\x9d:\xc5\xd1\xc1&gt;\xd7\x9f\xfd&gt;\xbbo\xbf\xf5\x9f\x0c\xeb\xf8%\xc0\xe1[\xafq\xf4\xd2\xf3(3F\xf7\x8f9s\xe6\x1cZ\x05N]\xba\x9f\xef\xbd\xf8"o^\xbd\xca\xfa\xfa\x9a\xd1R\xca,`N\x18\x9f\xbc]\xd0\x1d\x1e\xb2\xb8}\x1d\x01\xa6\xeb\x1b\xd4\xed\x82\xd1\xe6\x16"\x9e\xd8.\xd0\xaa\xb2\x1c-g\x92v\xb4\xd8\xcc`\xb3\\rx\xb8O\xbb\xb4\xcd\xaa\xa7\xcf]\xe4\xdc\x85{\xd9\xd9&lt;\xcdt:\xa3^\xdb4D_\xbc!\xfe\xce\xa31\x19.\xa5\xc28T\x1c:\x0f\xe2\x99\x8d\xa6\x8c\xc5\x10\xf2\xfdECJ\x99\x18[\x0e\x0f;j\'\x8c\xeb)\xc9\x8b)4;G\xd2\xcc\xc8y&amp;\xd3\x11U]\x15\xc8\xc3^K\xb2\x16\t\xef\x12\xfa\x15\xd0\xccl6c6\x9b\xd0,\x97&lt;\xbc\xb3\xc3\xa6\xf3l\xc6\x8e\xe6\xf0\x80\xb4\\\xdc\xd5s&lt;q\x86\x95R&amp;\xde\xdcE\x9b\x88\x9fxH\x8ez\xb6\x0e\xe3\x80K\x89\x8d\xd9\xcc6c\x05[n\xa9R\x19A/g\x13I\x9b\x80w\x01\xe7=]s\x80,\xf7\xa8\xbc\xa0\xcb=\x96G\r]RD\xbc\x85\xba\xb6a~\xb0K\xd3,\x88]K\xec:\x9c\xf3\xaco\x9fb2\xaa9\xb3s\x8e\xd9\xda&amp;\x93\xe9&amp;\xf5djD\xbe\xa2\x19\xe1\x04r\x8cTkS\xe2\xf5}r\x8c\x04q\xd4uE\x9b\x13\xa1\xae\xc1e&amp;Ud\xea={mG\xe5Gx\xe7H\xb1\xa3r&amp;\x7f\x945\x13D\x98Mg\x04/\x8c\x83c6\x19\x13\xc2\xc8\xf4\xb8\x92\x16\xfe\x98/|ESi.j \x8c\xea\x9a\x91\xc0\xd9\xf5)\xdd\xf5\xeb\x8cUY\x1b\x8f\x19\xcf\xee\xae4\xf7\x893,UE\x92\xe22H\x97\xd0\xc5\x82jm\x86\x9b\x8c\xe1\xe8\x80S;\xdbl\xec\xde$\xc5\xce\xb8\xe4)\x17\xd5\xe42\\\x9al\x9a&amp;\x84\x80\xc8\x94zR#@sp\x93\xday\x16\xf3%\xcd\xe1\x9c\xec\x1c\xae\xac\xf2\x1dO&amp;\xe4\xaab\xe4\x9cm\xae\x1fOX\x9b\xad3\x99\xce\xa8\xeau|=.\x87k\xabL$\x83\xa6\x16I]\x19#3O\xe2\xbdgT\x8dmF\xd1\x0b)\x19X\xb9\x892\xab&lt;\x8d\x9aTx\x0cc\xaa\xca\xe31~U\x15**/\x04\x17\xa8\xea\xda$&amp;\x15\xb2wdWTM|e\xc2\xb6e`\xc2\xd8\xa7\xb6Gq}\xb4\xc6\xa4\x0c\x9a\xd4\xc1Sol0\xd9\xdc\xba\xab\xe7x\xe2\x0cKD\xa0\xaa\x8c\x9b.b\x03X\x9aHMKppag\x9b\xab{;4\x8b9U\x99\x05L8$g\x90\x8c\xf3\x81z\xec\xc9\xb1%\xc4\n\x11\xeb\xfeW~\xc4r\xff&amp;^&lt;\x01\xa5\x9d\x1f\x924\x83/3\x81\x93\x9a\x11\x9e\xb5\xd1\x14q\x99\xe9l\x03?\x9a\x10\xc6k\xb8z\x8a\x0b\x95\x8d\xc0\x8bG\xbaH\xce\x1dt\xd6~1\x015{\xef\xd3\xc9\x04]*1\xb5E\'\xd5\x86V+\xef\x19k\xa6m;\x9b\xc2Q\xc1\x05\x87\x17\x87\x17eT\x8f\xa9\xab\xdar(\xcaD5\xe6\xadr\xc6\xfa\x83U\x8d:\x93&lt;\x02\xa8\xc4\xb1\x16\x1c\x97\'\x13\xa6UE\xe3&lt;\x92Z\xd6wN1\x9a\xcd\xee\xea9\x9e8\xc3r\xde\xe1\xc6#\xac\x19h\xb8M\xda\xbfMs\xb8 l\xcc\x18\xd5\x15\x0f\x9d;\xcf\xbcmL\xfc"\xdb\xd6\x08\xe7e\xe8\x8feU\xc4U\xb8\xba\x06l\xb0TU\xf1\xa3\tU=!8\x0fk3\xda\xc5\x01\xb3h\xfdE\x1fj|V\xeajl\xefc4\xc2\x8f\xa7\x84\xd9&amp;\xf8\x80\xb1\x89\xd5\xb8N!\xa0M&amp;6s\xdbP\x11\xbc%\xd1\x1aq"T\xa31i\x91\xc9j\x9es\xe4\x1c.g\xeb/\x8eG\xb4\xd1\x86em\x88\xbf\xd0\xa7s"u-U\x18\x15\t%\xa3V\xe3\x0b\xcf\xccQh\xcb~`\x93\xaeMF&lt;yv\x9b\x8d6\xe2\xc5\xe4\x8f\x88\xca\xec\xf4\x19|}wY\x0e\'\xce\xb0\x00\xaa\xb55\xfc\xb8F\x9b\xc8x:B\xe7\x87\xd0\xb4\xe0,o\xd8\x9aN\x87\xf5\x1e\xe2M\xeb\x00\xd1\x81\xec\'\xde\xa3\x85\xfc\x07\xd9t\xdc]f\xb6q\x81\xd8\x1c\xe0\xf0\xc4n\x81\x0b\x81\xb8\\\x94\xb2\xdfz\x82\xa1\x1a[\x88\x15S\x84\x89\xb1\x83$\x10\x13\xe2\xc1\x85\xdaDq\xbbE\x91\n\xc4\xb4\x1f\xbc\'\x04%%%T\x15\xba\xd0\xd2\xb7\xb4j\xce;\xa5\xf2c2\xc9\xf4\x1cJ\x1f*\x93\xc9\x02\xdeD\xbd\x89\xcd\x82\x10*RV\x92f|\x98X\x03&gt;\xd8\xec\xe3 \xcb\xe4\x1c\xeb\xe3\x9a\xc9\xda\x14\x9d/q\xe2\x08\xa3\n\xda\x05\x93\x9d\x1d\x93\x1d\xb8\x8b\x08\xfc\x893,\x11!L\xa6T\xb31y~\xc4h\x1a\xf0\x93)\x1b\xa7\xce\xb3\xe8\x16\xdc~\xe3\x15fg\xefAFE\n\xbb\xe7\xb6\x97\x11x\x15A*\x8f`\x95[\xaf\xab\x90\x93\r\x8aJ\x98 &gt;\x11DH\xa9B\xe3J\xcf\xdd\xd7#\xe3W\xa9\x81\xaa\xed\xe2\x90\xa6IH\x18\xe3\xba\x96\xd1\xfa:n2"H /\x8f\x00E*\x8f\x97@r\xfd\xe4ODFc\x9cxb\x1bq\x0e\xa6\x931U5\x1a\xa4\xc3E\xfb%N\x86\x98S\x10\xfc\xec k,\x03\xb8\x0e\xf1U\xd9\x7f(\x03\xe2.R\xb6\x8cy</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67210648148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>787735</v>
+        <v>791416</v>
       </c>
       <c r="B15" t="n">
-        <v>1955</v>
+        <v>1984</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rogério Ceni</t>
+          <t>Cláudio Tencati</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa2zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\xdc0\x08\xdds\x8a\x1cA\x02\x01\xf6q\\\x1ev\xa9\xca2\xc7\xcfC\xb2\xfbw\xb7\xc7E\xda\xd5\xb2e1&lt;\x9e\x00\x99\xfe\xfe\xfeC\xbf\xf0\xcb\xac\x99d\xf4N\x06\xefl\xf2d\x93\xa9\x17\xcb\x9cbn\xa3\xcd.\xb1&amp;\x13\xbbe+\xb6\x18\x9b\xca\xd0\xde\xbf\xa4\x17v\x99)\r\x9c&gt;/\x98f(\x99\x0c\xca\xa5\x14\xfb2\xdb\xd6\xc2t\xe7\x05W\x92\x01\xa6\x16\xf2\xfa\xe3\xd9!\xc5\xb3-\x10t^$K\x1f\x17\x9e\x920F\xc685#\xb8\x8b\xf70\x0b4\xde\xf1\x14\x0eX(`\xa5\xe1\n\x17@\xa9\x8b\t\xe6\xbd\'\xa8\xf7\x08q\x06\xceu\x1dA\xb3\x01\x11\xe2\x0c\xa0\xec{c\xef!AI\xf6\x01\xc1\xb0\xc2\xe0\xc83m\xc1\x84 F\x85\xa2\x06\x8d\x01\x1d\x90\x11$\xcf\xb2\x12z\x84\xbb:\x18\xbc\x10\xe0\x96P&gt;\x16{\x85\x97m\x04\xf2\x0b\x19\x02\xe8\xd1\xfa-\x8c:\xcb6\x9bG\x18\x95J0d\x06Z5L\x05\xae\xa2U\x86k,\x19*\x8e\xbf 4N!\x8c\xd1\xb0\x84\\A@\x89\'\xf8\xca2\xf2\xf2\xa2\x14\xee\x8e\x115\x19\xba\x03\xde\xd8\x0b\x16\xaeI\xa0\x1f\x9f\xc7\xdb\xfc49\xe8:;\x9e&amp;G\xc9T\xb3\x02\xc6\x8c\xf7YRsv\x06\xd1/\x990\xbc\xba\x9cMp\x9f \x85*tdv\xcb\x94t\x9e)\xe5\xcdP\xe5\x13j{I\xfa(RA\xbc\xf9:\xa3\xd6dYg\xe8\x18\x19qC\x8f\xb488\xc2^ 0\xe5J\xdcR\xd3\x1e\x8b\x0f1\xc6\xf6(\x05\x03H9l&gt;J\x18\x95.\x85\'\xdc\x15#\x9ec\xfb\x8f\xd4~\xb46Gt\xe1I\x1d\xd4\x97~s\x82lrQ4\x17\x8fV\x82\xc0X\xb0\xedpX\xf0\xa4T\x11tX\x94x\xc2\x0e(\x16&lt;\xde`\xd9B\xdc\x8e\x91\xbd\xb9\tTt\x13?\x9c\xaf\x984\xfc\x86\xf1\x8a*\xc3x\x86\xb3\x1e\xb3NZf\x9f\xa9\xde\xd3\xacQ\x99\x8am\xe9\xb4\xd0\xbag\xc1\xc2\x0e\xfe\xbb\xe0&amp;wV\xb6\xf4\xac\xb6\xef\xb2\x0c\xcd\xffY\xde~\x9a&lt;*oz^\xdf\xff\xa9\xf9{:&gt;\xcf\xb6\xc2\xa6\xed\xfc\xfc\xa9\xe6\xa6\xb2\x16\xb3\x9c\x17\xf3j\x1at\x04\x18\xb2.z/:\xf1`K\xf4\xdeh\xbd\xa5\xf7\xc11\xaf\xbc|\x88o\xd2{\xc3tG\xe2S\x0e\xe9\x8e\xc4\xa7\x1cR\xfb\x0e9\'\xf1\x80\xc3\x0e\xb5\x9f\xbe\x1b"\x1d@n\xa6\xdf\x1b\x06\x82\x8f,\xc75\x82M\x89\x93\x0f-\x00\x9f?\xdcE\x0f\xc39\x08\xb2\xa3\x89\xe1\xcf}e\xeb\xc6\xc8\xdd\xb9vJ\xf2\xb7\xda\x8d\xa1\xf6Au\xeao\xf7E\x87\xef\xb3\x7f\\$@`7\xafd\xfa\x00\x00iMIDATx\xda\xed\xfdY\xb0%\xd9u\x9e\t~k\xef\xed~\xa6;\xc7\x1c\x99\x91\x199\'2\x81Db$\x06\x82\x04@\x8a\x83HJ\xa6\xa1\xdaZmV]\xd5\xd6*\xab~\xe9\xe7\xb6~*\xbc\xd4[\x99\xe9\xa1e\xd6U\xa6\xeeVwI-\x89"5\x91\x14Y$H\x90\x840\x10 F\x02\xc8\x119O1\xc7\x1d\xcf9\xee\xbe\xf7^\xfd\xb0\xb6\xfb\xb9\x81VIbI\xa5\xb8I\xca\r\x81\x88\x8c\xb8\xf7\xdcs|/_\xc3\xbf\xfe\xf5/QU\xe5?]\xc3\xf5\xa3\xb7#v\x1d1%\x96\xcb\x05\xb1k\xe9\xbaH\xd7\xb5\xa4\x18\x89]GU\xd7L&amp;S6\xb7\xb7\x19\x8d\'8\x00\x91\xbb\xfd1\xee\xfa\x15\xee\xf6\x1b\xb8\xdb\xd7\x8f\x1a\x92\xaa\xa2\xaa\xc4\xae\xe3\xe8\xe8\x88\xa6Yrtx\xc0\xc1\xfe&gt;W\xaf\xbc\xc3k\xaf\xbc\x84\x00\x93\xe9\x1a\x17\xef\xb9\x07\x1f\x02\xeb\x1b\x1b\x1c\x1e\x1ep\xe6\xec9\xa6\xb35\xbc\xf7\xc81\xe3\x92?\x87\x86&amp;\x7f\x1e=Vo&lt;\xfd\xaf\x9c\x12]\xec\xd8\xdf\xdb\xe3\xe8\xf0\x90[7o\xf0\xc2\xf3\xcfr\xb0\xb7\xc7t6CDX.\x16\x1c\x1c\xec\x13B`2\x990[[c&lt;\x9ep\xfa\xccY\xda\xa6\xe1\xc5\xe7\x9f\xe5\xdc\x85\x0b\\\xbc\xf7&gt;vN\x9d\xe6\xa1G\x1e\xc3{\x7f\xe7\xcd\xfesd`\x7f\xee\x0c\xab\xeb:\xe6G\x87\xcc\x8f\xe6(\xcalm\x8d\x83\xfd}^}\xf9%^z\xf1y\x16\x8b\x05\xcdr\x89s\x8e\xfd\xfd=\x96\x8b%\x87\x07{\x800\x9eNy\xe8\xe1G\xb8}\xf3\x06k\xeb\xeb\x88\x08\xfb{\xbb\xe4\x94\xb8v\xf5\n\xcb\xe5\x82\x87\x1fy\x9c\xa7?\xf2Q\xd6\xd77\x18O\xa6\xdcs\xef%f\xb35\xaa\xba\x1e\x0c\xeb\xcf\x83\x81\xfd\xb9\x08\x85\xbdW\xca\xaa\xbc\xfe\xea+\xbc\xf5\xe6\x1b\xa8*!\x04\x96\x8b\x05\xaf\xbc\xf2\x12W\xdez\x0b\xef=\xf3\xa3#\xd6\xd6\xd7\xe9\xba\x8e\xbd}\xf3`\xf3\xf9\x1cUh\xaf]\xe3\xf6\xee.\xc1{\x96\x8b\x05\xb3\xd9\x94\xe9t\xca}\xf7_&amp;\xa5\xc4\x1b\xaf\xbdB\x17;^|\xee\x19R\x8c\xdc{\xdf\x03\xd4UE:}\x86\xf1dB\x15*\xea\xd1\x08\xf8\xb3o\\\x7f\xe6\rKUI1\xa2(GGG\xfc\xfa?\xffU\xae\xbes\x85\x10&lt;\xd3\xd9\x1aGG\x87\xec\xef\xed\xe1}@\xc4&lt;\xda;W\xdea\xf7\xf6.\x8bfIJ\tEP\xcd\xa8\xc2\xad\xdb\xb7A\x15\x11!T\x81\x9d\xedm|Us\xf3\xda\x15\xe6\xf39\xd7\xdey\x87\xb6iX\xdbX\xe7\xfa\xf5+,\x9b\x05 \\\xba\xef~.?\xf80\xd3\xe9\x8c\xd1x\xc4h4\xfe3m\\\x7f\xa6\rKU\x8912\x9f\xcf\xb9~\xf5\n\xcf?\xfb\x0c\xaf\xbe\xf4\x12{\xbb\xbb\xb4m\x83\x88\xe0|`\xe7\xd4)\xae\xbc\xf36m\x17Y6\r\x8b\xe5\x82\xae\x8bx\xef\xa9\xab\x9a\x10\x1c\xcey\x9a\xb6\x05\x1cJFs&amp;G\xb8~\xfd:{\xfb\xfb4\x8b\x05N\x1c]\x866%\x9a\xae\xe3\xfa\xf5\x1b\xbc\xf5\xc6\xeb\xacon\xb3\xb6\xbe\xc1\xfb\xde\xff\x01.\\\xbc\xc0=\xf7\\\xe2\x81\x87\x1e&amp;\x84@\xce\x99\xd8u\x8c\xc6\x7f\xb6\x0c\xed\xcfl\x8e\xd54\r7o\\g~4\xe7\xfb\x7f\xf2m\xbe\xf2\xa5/\xb2{\xfb\x16\x93\xc9\x94\xb6i\xd8\xdf\xdf\xe7\xe8\xe8\x90\xe5r\t8R\xce,\x9b\x06\xcdJ\xd2\x8c\x13\xc7d2\xa6\xaeG,\x16s\xbc\xf7t]\x07\x80\xf7\x82(8\xe7\x98\xad\xcd\xe8\xda\xc8|q\x84\x88\xc39G=\xaa\x11q\x00llnq4_p{w\x17Uecc\x9d\xbf\xf9_\xfd\xd7L\xa7\x13N\x9f:\xcd\x85{\xeea\xb9l8:&lt;\xe4\xa1G\x1ee6\x9b\xdd\xed[\xf7\x1f\xe4\xfa3\xe5\xb1\xfa*o1\x9fs\xe3\xc65\xdey\xfbm\x9e\x7f\xf6\x07\xbc\xf9\xc6\x1b\xdc\xbc~\x8d\x10*.\xde{\x89\x1f&gt;\xff\x1c\x8b\xc5\x82e\xd3\xb2h:\xba\x82O\xa9&amp;TA\x01Ah\xdb\x16\x11H)1\x1a\x8f\xc9)S\xd7\x15]\xccx\'t]\xc2\xcd\x17\xe4\x94\xe9\x9a\x96z&lt;FQbJ\x08\x99\x98\x12a&gt;goo\x9f\xbd\xfd}4+&gt;T\xbc\xf4\xf2+T\xc1\xb1{\xeb&amp;9%.^\xbc\x07\xe7=W\xdey\x9b\x0f~\xf8#\xec\x9c:\x8ds\xeen\xdf\xce\x7f\xaf\xeb\xcf\x84\xc7:\x1e\xf2\x9af\xc9\xdbo\xbe\xc9\x9bo\xbc\xc6\xf5\xabWy\xfd\xb5Wi\xdb\x96\xa3\xc3\x03\x14\xc5\xfb\xc0\xc1\xc1!\xaf\xbe\xfa*\xa3\xd1\x08\xef\x037o\xde`&gt;?"\xc6\x0e\x05r\xca8\xe7q\xce\x93sF\x10F\xa3\x11\x9a"\xe3\xe9\x94\x943\xde\xdb\xd7!\x82\xa6\x84j\xc69\x87\x8agsk\x83\xf1\xa8\xe6\xe0\xf0\x90\xe5\xd2\x8cw\xb1\\RU5k\xb35\xba\xd4q\xff\xa5\xfb\xb8\xef\xbeK\\y\xebM\x8e\x0e\xf79}\xe6,\xf7_~\x80\xfb.?\xc0O~\xe6\xb3\xdc\x7f\xf9\xc1w\xb5q\xfd\x99\xf0X\xcb\xc5\x82+W\xde\xe1\xca;o\xf3\xfc\xb3\xcfp\xfd\xeaUn\xde\xbc\x01(\x93\xc9\x94\xaa\xaaH9\x03\xc2k\xaf\xbd\xccb\xd9\x94\xdc&amp;R\x85\x1aEp\xe2\xc8YI9#\xaa$U\x9c8R\xdb\x11\xaa\x00)\x12\x04\xea\xe0\x88I\xc89\xa2\x9a\xc91\x03\x90S"\x12\xc1y\x0e\x0f\x8f\xd8\xdf\xdb\x07\x81\xaa\xaa\xa8S\xa2sB\xce\t\x9c\xd0\x1c5\xbc\xfc\xca\xcb\xbc\xfa\xea\xcb\xc4f\x89\x13\xb8v\xf5*\xcf&gt;\xf3}vvN\x81*?\xfb\x0bS676\x19O&amp;\xefJ\x03{W{\xac\x94\x12\xf3\xa3#\x9e{\xf6\x19n\xde\xbc\xce\xed[\xb7\xf8\xfaW\xbf\xc2\xad\x1b\xd7\xd9\xd8\xda\xc2;\xcfh&lt;b\x7f\x7f\x9f\xdd\xdd]n\xdd\xbaE\xdbERJxg\x86$",\x16s\x9a\xa6\xb50\xba8\x84\x9c\xa9\xaa\x8a\xd9d\x1d\xd1L\xcc\x89I]3\xaa&lt;\xd3\xb55bVk\xef\xa4H\xb7\\\x82\x081&amp;\xba\x18\xc1\x07\xc4Y\x12\xae\x08\xe3\xf1\x98\x9c"\x8beK\x973.TT\xa1\xa2m\x96\xe4\x14\xd1\x9cp\x02U\x08x\xef\xd0\x9c\xd8\xdc\xdc\xe2\x83\x1f\xf9\x18\xff\xbb\xff\xfc\xbf\xe4\x89\xf7\xbe\xafxV\xff\xefy\xb7\xfe\xe3^\xefj\xc3\xda\xdb\xdd\xe5\x9f\xfe\xca/\xf3\xbd\xef~\x1b\x11aw\xf7\x167\xaf_\xa7m[&amp;\xe3\t)%\x92*m\xd7\xb1X,i\xbb\x8e\xd9l\x8d\xf9\xfc\x88\x9c3\xaaJ\xd7\xb6\xe4\xactMC\xa8&lt;)&amp;\xd0D\x08\x81Q\xa8\xd9\xdeX\xc39\xa1\xf6\x9e\xd9t&lt;$\xf1Y\x95\xf9r\x81\xa6\x84\xb8@\xd3\xb5\xb4mK\xa7J\x17\x13((\x0e\x1f*\xda\xae5t_\x15_\xd5\x80X\xaf1vhN\x08\xe0\xbd\xc7{\x87\x13!8A\x9cp\xef\xa5\xfb\xf8\xcf\xff\x0f\xff\x15\x1f\xf9\xb1\x8fs\xf1\x9e{\t\xc1\x02\xcc\xbb\xa1z|\xd7\x1aV\xce\x99\xdf\xff\xbd\xcf\xf3\xb7\xff\xd6\x7fG\xb3\\\x925\x83B\xdb,\x18O&amp;l\xef\x9cf\x7fw\x8f[\xbb\xbbt\xb1C\x11\xc49b\xd7\x91R\xa2\xaa*bi$kN\xa4\xae\x03\x94:\x046\xd6g\x9c\xd9\xdc\xe0\xd2\x99S\xdc\xb3\xb3\xc3\xc6lL\x15\x04\'\x15M\xdbp4\xdf\x87\xac\xe4\x9c\x01\x07)\x13jOL\x996e\x0e\x9b\x86\x1b{\x87\\=Xpm\xf7\x80\xa3\xf9\x9c\x9c\xcd\xc8%T\x88\x04\x9c\x83f\xb94\x8f\xe5\x9dU\x94"8\xe7\x08U\xc0;\xc1\x0b\x8c\xc6c&gt;\xf6\xc9\x9f\xe4\xe7\x7f\xe1\x97x\xe0\xa1\x87\xd9\xdc\xdcb{g\xe7\xc4{\xb0we\x8e\xa5\xaa\\\xbdr\x85\x7f\xfa+\xbf\xcc\xde\xee.\xa1\xaa\xec)\xd6\x8c\xe2\xd8\xdb?\xe4\xe0pN\xce\n"x_\xd1\xa5H\x8c\x91v\xd9\xd06\r\xa1\n\x96\xcc\x0b\x88&amp;v6\xa6&lt;p\xf64\xef\xb9\xef\x12\xe7\xce\xec0\x1b\x8f\x08&gt;0\n\x01Q\x05\'\xa4\x9c\xc9qB\x9c\xd4tmC\xec\x12\x19!x\xb1\x9f/b0\x83s\xa8st\n7\xf7\xf7\xf9\xde\xcb\xaf\xf3\x83W^e\xefp\x01)S\x8f\x84\xaeM\x05\xbeHx\t\x8cG51E4g\xd6\'367\xd7\xd9\xbd}\x8b\xa6i\xf8\xdaW\xfe\x15\xef\xbc\xfd&amp;?\xfb\xf3\xbf\xc4\'~\xfcSLg3\xc6\x05\xf7:\xa9\xde\xeb]\xe9\xb1\x9af\xc9?\xfa\xfb\x7f\x8f\xbf\xf3\xdf\xff\xdf\xd8\xdc\xdc&amp;\x84@\xd34\xcc\x8f\xe64mK\xd3\xb6\xc4\x18\xc993\x99L\xadj\xccv\x90\xb1k\xc91\x11\x9cc4\x1e\xb1\xbd6\xe2\xa9\x07\x1e\xe0\xbd\x97\xef\xe3\xd4\xd6&amp;u\x15p\xc1\xa1m\x8bs\x0e\xf1\x0e\xa7\x80*9FR\x17\x89]C\xd7u\xa46\x82f\x92\x808A\\\x005c\x96\xbaFB\x05.\x90\x92rc\xf76\xdf}\xf1\x05\xbe\xfd\xc3\xd78jR\xc1\xcd\x96(\xe0\x83\'\x94\xdcK5\xb3\xb1\xb9\xc9\xf6\xf66]\xdb\xb0\x9c\x1f\x01\x10\x82gcs\x8bK\xf7_\xe6/\xfd\x95\xbf\xce\xcf\xfe\xfc/\xe2\xbd?\xb1\x89\xfd\xbb\xcec\xe5\x9c\xd9\xbd}\x9b\xef\x7f\xef\xbb\xe4\x0c\xa3\xd1\x88\xd1x\xcc\xe1\xd1\x11\x87G\x87t1Y\x1b\'E\x9a\xb6e\xd9\xb4\x08\x94\x84Z\xf1\xce!\x02[\xb3\t\x1f~\xcf\xa3|\xf8=\x8fpz\xeb\x14^\x15\x17&lt;J\x02\x8d\xa8\xf3hNh\x8a\xe0\x1d$E\xbb\x0eRB4!(hBT\xf1\xde\x81f\x88\x9d\xd1p\x9c\xc3\xe5\x80\xc4\x0e\\\xc2\x87\x9as;[|\xfa\x03O\xf1\xd8\xc5\xf3|\xed\xb9\x97\xf8\xdekoY\x9e\x87\x92#\xe4\x0c))\xde\t\xf3\xa3\xf9\xc0\xf5r8Bp\x88\x08\x97\x1fx\x88\xa7&gt;\xf0A~\xfd\x9f\xff\x13\xea\xaa\xe63?\xfd3\'\xd6k\xbd+\rk\x7fo\x8f\xd7^}\x85\xd1\xa8f2\x9d\xd9\xe1\xa82\x9aLa\xb94\xcf\x9429+\x9a")EC\xcbE\x08\xa3\x9a\xf7=\xfc\x00\x9f\xfd\xe0\xd3\xdcw\xee4\xe2=N&lt;\x1e\xb5*-\xb5\xd6\xb2\x89\t\xcd\t\xaf\x8a\x0f5\x04O\xee\x96\x08\x11r\xc2k\xc2\x05\xb1$=GT\x1c\x88\x92\xc5!\xce!\x9a\t*h\x8e\x80\xc39A\xaa\xc0\x853\xa7\xf9\x0b\x931\xf7l\xce\xf8\xc3\x1f\xbc\xc0\xb5\x83\x05]\x8cd\x0f)[c\xdc\xc7HV\xa5)EH=\x1a\x81f\x9a\xa6\xe1\xd1\xc7\xde\xc3\xf6\xf6)\xfe\xc7\xbf\xfbw8}\xf6,\xef\x7f\xfa\x83\xe6YO\x98q\xbd\xeb\x0c\xcb{\xcf\xb5kW\x89\xb1\xe3\xec\xd9s\x84\xaa"\xa5\xccr\xb1\xa4i[|\x08\xec\x1f\x1e\xd24\r\x82\xb3\xd0\x94\x15%\xb3\xb9\xb9\xce\xcf}\xe4\x03|\xec\xe9\xa7X\x9f\xcc\xec\xd0E\x10\x15H\x1d\xa4\x96\xe0\x03\x88\x82\x0f\xe4\xd4!)\x92\x96KD\xcc\xd3\xf9*\xe0\x11\x94\x96\x98#\x19E\x83C\xb3 \xde\x81Z\xae\xa59\x82&amp;\xf0\xde~W\xc1;O\x15*&amp;\x93\t\xef\xbd|\x89s\xebS~\xeb\xbb\xcf\xf3\xc2\xb5\x9b@O:\xb4\xa2@D\xa8\xeb\x9a\xa6mQ\x94\xe9d\xcab\xd9p\xfd\xda5.\xddw?\x8f&gt;\xfe\x04\x7f\xef\xff\xfd\xff\xe4\xdc\xff\xe5&lt;\xe7\xcf_\xc0\x87\x93u\x94\xfes\x9f\xfb\xdc\xe7\xee\xf6\x9b\xf8\xd3\\\x07\xfb\xfb\xfc\xe6o\xfc\x9a\xe5$\xa3\x11/\xbe\xf8\x02\xd7\xae]\xe3\xf0\xe8\x10\xe7\x1c\xf3\xf9\x82\xc3\xc3#\x83\x1aR\xc4\x89y\x8b\x07\xcf\x9f\xe1\xaf\x7f\xfa\x13\xbc\xff\xe1\x87\x98\xcdf\xf8`\xf9I\x08\x01\xc9\xd1J~\'%Q\xc7\x90t@T\x11\x01\'\xce\xc2i\xb6\xbfw"F\xc7\xd1h^\xb1\xe9\x10\xe7\x0c\xb9\xcf\x8a+\xa1WsFs\x82\x9c\xd0\x0c\x88\xc3\x87\x80\x13a:\x9ep\xdf\xce6\x9a"o\xef\x1eZ\xb1\xa1J\xec""\xc2t:c&lt;\x1e\xd1,\x1b\x9a\xb6\xa5\xaek\xa6\xd3\t\xaf\xbf\xf6*\xfb{\xbb\xbc\xfe\xda+\\\xbc\xe7^vN\x9ff&lt;\x9e\x9c(\xafu\xb2\xcc\xfc\xdfpY\xde\x94\xb8v\xed*\x07\xfb{lln\xf1\xd6[o\x12Sb&gt;\x9f\x93Sb\xdev,\xe6\x0bR\x8a\xa4d\x06\xe0C\xe0c\x8f&lt;\xc8O&lt;\xfd$\xe7\xcf\x9df&lt;\x9d\xd8\xc1\xba\x12\xc6b\x0b\xd9\xaa1R\x86\x94P\'(\x11\x8d\tbG\x8e\x11+:\x13N\x0c^H]g\xb9W6\x0f\xe5\xbc7jM\x8c\xe0\x1c\xe4`\xbfk\x82\xe4\x0b\x18\x9b\xc1W8\xef\xa9\xc7c|\xa8\xd8q\x8eO?\xf58k\xe3\xc0W~\xf8\x16\x87\x8b\x0e\xc4\x0c\xf7h1\xa7\x8eF\x10\xcc9s\xe5\xca;|\xfew~\x9b\xe0\x1c;\xa7N\xe3\x9d\xb0\xbf\xbf\xcf\x95w\xdea&lt;\x9e\xb0\xb6\xb6v\xb7\x8fi\xb8\xde\x15\x86\xd5\x1b\xd5\xe1\xe1\x01\xaf\xbf\xfe\x1a\xa7N\x9f\xe3\xb5\xd7^\xe1\xe6\x8d\x9b\xec\xde\xbeM\xdb\xb6\x80\xd2\xb5\x89\x98\x12\x9a\xad\x19\xbd6\x9b\xf2\x99\'\x1e\xe3c\xefy\x84\xd3g\xb7\x18\xafM\xa9\xea\n/\x14\x0f\x92\xc9\xb1C\x9b\x86\xdc\x95\x84\x1cH\xda\xa1(\xa9Y"\x80s\xde\x1a\xdc9\xa3dR\xb3\xa4\x8b\x11\xf5\x86;!\x0e\xe7\x12\x99\x8c\xa6\x0e!X\xc5\xd8C \xce\xdaF\x88Z\xd8\x05\xc4\x07\\U\xe3\x9c\x10\x04&gt;\xfc\xf0}\x8cG\x8e\x7f\xf5\xec\x1b\xdc&lt;l\xe8RD\x8f\x0eY:O]\x05\xbc\xf3\xc4\x18i\x96\r!x\x0e\x0f\x0fy\xe0\xc1\x07Y,\x17\xbc\xfd\xd6[lll0+4\xea\x93p\xbd+\x0c+\xe7\xcc\xc1\xfe&gt;\xcf&gt;\xf3\x03\xbe\xf1\xf5\xaf\xf3\xfd?\xf9.?\xfc\xe1\x0b\xec\xed\xee\x0e(\xb8fk\xa9\xa4\x14\x01ec2\xe1g\x9e~\x92O\xbc\xf7\t\xb6\xb6\xb6\xa9k\xa1\xaa\xad\xe9,\xaa\x96\xd8\xc7\x8e\xdc4h\x17!C\xc6\xc2\x9ajF\xbcC\xc0H}\x05\xc7\xf2!@\x8c\xb8\xba\xc6{\x8f\x92\xc9`9\x95FD\x93\xa1\xe7d\xb2Bl\rt\x15\xc9 \x8e$\x0e|\xc23\xb2\xdc\xcf)N T\x15\xd3\xc9\x8c\x87/\x9eg\x1cF\xfc\xde\xf7^\xe6\xfa\xd1\xc2\xfa\x95.\x92SdT\xd7 \x8e\x9c\x12)9R\x8c\\\xbf~\x9d\xef~\xeb\x9b\xb4\x8dA#\xc7\xd1\xf9\xbb}\x9d\x8cw\xf1o\xb8T3GG\x87|\xe3\x8f\xbf\xc6\xef}\xfewx\xfe\xb9gx\xe3\x8d7X.\x16\xa4\x94\xed\xe0Q\xda\x98H)\x01\xcal&lt;\xe2\xe7&gt;\xf4\x14?\xfe\xde\xc7Y\xdf9\xcdd&lt;\xc2{\xc1\x89\xe2\n\x1e\x95c\x87v\x11m:r\xeap"\xf8 \xa4\xac\x90\xc1;\x87\xab*r6\x88\x82\x14\xf1&gt;@\xedA#)\xba\xd2\x8e\xc9\x88xp\x13b\\\xa2"\xb8\xachJf|\xc9\xbc\\_D\xe4\\`C\x1fq\xaeB*\xeb\x11Ngk\x10*\xc6\xd5\x94\xd8*\x9f\xff\xfe\x0f\xd9k\x1a\xba$\x08\x10R\xb2\x08+\xf6\xdfQ\x95\x1b\xd7\xae\xf1\xbd\xef~\xd7\xc2`\xa1S\xff\xe8\x84\xd0\xdd\xbaN\xbca\xa5\x94\x99\x1f\xcd\xf9g\xbf\xfa+|\xe7\xdb\xdf\xa4\xeb:\xda\xa6!\xa5\x84h\x06,\xd9\xd5\x98\xf1\xe2\x18\x8f\x03?\xfe\xe4\x13\xfc\xc4\xd3\xefc6\x1d1\x9e\x8e\xa8B\xc0\x01Z\x12\xef\xd8\xb5h\xec\xd0e\x87\xe4\x84\xe4\x8c\xab\x03\xe4l\xad\x92\x92\xbck\x8a\x86\xa4\xe7\x84\xc6\xd6\n&gt;\x14\x04\xbc\x08I\x04\xcd\x8a\xc3h\xcb\xdeyRN\xe0\xc0\x13\x8a!d\xb2&amp;\x04A\xb2 \x9aI\xcd\x02\xf5\x01\x95\x0e\x97k\x08\x8e\xe0\x1d\xd3\xba"\xc8\x8c\xcb\xe7\xcf\xf0\x81\x83\x03\xbe\xf6\xca\xdb\xccc"e\xa5\xeb"u\xe5\x10\xdf\xf3\xce\x8c\xcc\xf8\xd6\x9bo\xd0u\x1d\xefy\xf2\xbd\xc4\x18\xef\xf6q\r\xd7\x896\xac\x9c3)E\xbe\xfe\xf5?\xe2\xd9g\x9f\xa1i\x1a\xda\xb6!\xc5l\x80\xa4f\x1c\xd6F\t\x95Py\xc7C\xf7\x9e\xe7\xc7\x9e|\x94zT1\x99\xadQ\x85`P\x01\t\x15;\xa0\x1c\x0b\xb0\x19&lt;R\x05b\xdb\xa2\xb1\xc1y\xc3\xa2\x14\x87x\x8f\x04\xc8\nN\x1d\xaer\x88\x02\x9a\x0c\x0ep\x82\xc3c\xa9S&amp;\x93\xc8\x80sb&lt;-U\xbc\x0b\x08\xa0\x9d\x01\xa7\x92e0\xf0\x98!;{0\x84\xaa\xe0i\x16\x1a7&amp;#\x1e\xbb\xb0\xcd\xfe\xb2\xe1;o\xde k\xa6M\x8a\x02!;\xbcs\x05\xe8uh\xce\xec\xde\xbe\xc5\xb5\xabW\x18\x95A\x8d\x93p\x9dx\xc3\xbay\xe3\x06_\xfb\xca\x97I\xe5i\xd4\xac@F\x94\x01\xdcD\x129G\xb6fc&gt;\xf4\xe0e\xceom0\x9d\x8c\rJ(\xa1RSF\xa4\xff\xdd\xe1\xad\xa5gF\x953\xa1\xaaq\x95\x03\'\x85\xf9\x90@\x1cU\x18\xe1\xb2B\xea\xec SD\n\xf9OTqY\x0c\xa1\xd7\x8c\xcfR\xf2"W\xa6\xa13`lS\xbaDR\xf3x^\r\xee\xea\xbaH\xce\xa9\x84\xe8\x80x\x87\x17aT\x07\xcelm\xf2\xfe{#W\x0f\x8exg\x7fa\xe1/\x1b\xf7K\x0b\xcd\xd59C\xf9\x9b\xa6\xe1\x8d\xd7_c\xb1XPU\xd5\xdd&gt;6\xe0\x04\x1b\x96\xaa\xd2\xb6-\x07\x07\x07\xdc\xbcq\xa3\xf4\xf9\xba\x92S\xd9\xc1\x04\xef\xe8\xbaH\x8a\x1d\xa3*\xf0\xc4\xe5K&lt;|\xefy&amp;\xb3)U=\xb6\xdcH\xf3\x10\x02\x8d\r\xaa\xa8\x13\xc4Uh\xd7\xe2\xaa\x8az2\x01J\xe8\xf3\x0e_\xbeG%\x9b\xe1\x92\x10\xa9!g\xb2\x0f\x88+\x1eIA\xbd\'\x13\xc1\x81d\x07\xb1%\'#\x0b\xf6XXV\x87T\x15\x92\xcd\xdb\xa5\x9c\xd0.\x92\xc5\xa1]\x87\xf7\x80fDjD\x95\xe0\x1d\xb3\xf1\x84s\x1b\xeb|\xf8\xfes\xfc\xc1\x0bo0o\xcc#\x82=\\V6X.\x95sbm\xb6\xce\xdd\xcf\xacV\xd7\t7\xac\x86\xa6i\xd8\xdd\xbd\x8ds\x06,\xe6\x9c\xc9\xc9\x10\xea6v\xb4MG\xce\x99\x8bgO\xf3\xe4\xfd\xf7\xb3\xb9\xb6F5\x1e\xe3}m^\'\x97\xf1-q\xe4\x94\xc9\xd8\xa0\x84x\x8f\x0fS\xf3.j\t\xb66\x19U;&gt;\xe7\x1c\xf8\xc2\x7f\x02$Cv\x0e![\xd5\x97\xa2y\r\xf1dU\\\x08H\x06\x91\n\\\xb6\xa1\x8c\x1c\xad\xf8\x0b\x15\x9a3b\xe9\x17\xea\x15Q\xc8]\x07\xe2\x88\xcb\x05R\x8d\x91,\x10\x1c\x0e{h\xd6\xa6S\x1e8\xb3\xc3k\xb7vy\xe1\x9d=\x92\xf6\x80HyS\x96\xee\xe1\xc4q\xe5\xca\xdb\xcc\xe7G\xcc\xd6\xd6N\x04\xa5\xe6\xc4\x1a\x16\xc0h4\xe6\xf5\xd7^\xe5\xe6\x8d\x9b\xa4lUV\'F\xf1\r&gt;\xd0t\xc6q\xda\x98\xcdx\xea\xa1\x07\xb8\xb0\xbd\xcdd2\xb1\xfc\x033&gt;\x0cH\x1f@F)\x7f\xf6\xd5\x88\x10jD \xc7\x0e\xba%\xae\x1aY\xce$J\x8e\x9d\xb1\x13P\xc0!R\xc0OU4Y%)*P0/Q\xcb\x07I\x19m#9F\xe6\xcb\x05\xa3\xba\xcf{,t\x8a\x0f\x85\x97\x05!9RVC\xf1\xdb\x96\x9c\xd4\xbc\x968\x82\xf3\xe4\xd1\x88mM\xbc\xef\xd29\xae\x1f\xb4\xec\x1eu}\xc7\xa84\xd6\x01\x11\xc6\xe3\t\x17\xef\xb9\x97[\xb7nq\xfa\xcc\xd9\xbb}l\xc0\t6,\xe3W)/\xbe\xf0&lt;\xfb\x07\xfb\x03\x87*\x95\x1c)ee\xb1l\xf0\xceq\xe9\xfc\x05\x9e\xb8\xe7"\xebk3B\xa8L\xf1%\xa7\xc2T\xc8\x90A\\)\xc3s\t \x19raB8\x94z\xb2\x89hBs\x87\xe6\xcez\x88\xceY\xbfQ2\xc4hp\x01\x80\xd4T&gt;\x90\xcb\xdf\t\xf6c\x84\x04\x88%\xfe\xde3\x01P%\xc5D\x8a\xf6\x9amj\xc8\xaaC\x01\x10,[\x03\x1c1u\xe4\xb6\xb0LE\xf0\xde\x13\xaa\x8a\x0b\x9b\x1b\\:\xb3\xcd\xe1\xf2\x1a*n\xe0\x9e\xd9}\xb2\n\xf6\xd4\xce)N\x9d:ubh4\'\xd6\xb0\x8c\x7f\xbe\xe0\xca\x95+\x96\xac\x8a\xb0\\,\x11\x11b\xceC\xa3v}:\xe5\xb1\xfb\xefekk\x8d\xe9tb\x00(\x82\xf3\xceF\xb9\x14\xf0\x90b\x87\xf3\x1e\xd4f\x02U\x8d\xfd\x10\xc63BU#)\xa3\xda\x99\x17Hb\xb9\x98\n\x9a,t:o\xe1\xcc\xc2\x9f\x90Sg\xa1\x16\xc1\x89\x90PH\t\xb2\x92\xba\x8e,\x16NU\x01\x97\xa1T\xa7Ua\xb1\xe6B\xc9\xd1\xac\x88\xfaA\xfa(\x93\x8dQ\x1a*\x10\x18\xd7#d\xaa&lt;yv\x87wn\xeeq{\xd1X\xbfQ\xc4\xbc\x97\xda\xb4P\xdb\xb5H)&lt;N\x82q\x9dX\xc3\x02h\xdb\x96\x14\x13UU\x1b\r\xd8\x06\xfeh\x9a\x86\x94\x13!x\xce\x9d\xd9\xe2\xf2=\xe7\xd9\xd8\xd8$T\xb5!\xdf\xdeC\xb6!\x08\xf3:\x18wJ\x9c\xe1N\xc1S\xd5cK\x98s\x04\x19!\xce\x17n\x94\x02\xc9\xf2\xb8l\xf8\x13\xdeY\xe8\x0b\x15\xce\\\x16\xce\x19\xd4\x90\x93\xb5z\x00\xc4G\xcc%\x1a\x9f\xdd9W\x98\x15J.`\xaa}78\x81\xba\n\xa4\x98\x88\xad\xb5\x97\xd49\xbc\xaf\xac#\xe0\x04\xf1\x01q\x9e\xaa\xaa9\xbb\xb5\xc1\xe5\xb3[\xec\xbdv\xd5\x9a\xdf\x18\x88\x0b\x10S\xcb\x8d27y\x12\xf2+8\xc1\x86%"\x84\x10H)\x11c\x01*\xc5\x92k\xc5n\xead4\xe2\xd2\xf9\xf3\xeclm2\x99\xcc\xa8\x82\xc7\x89\xd8a:!\xa8\x92s\x04\x04/\xde\x0c@@\x9c\xb3\xe4;\xa7\xc2\x972\xbc\xaak\x17fl)\x1a\x80\xaa\xc9\xaaP\x1f\x18\x98\n$\x9c\xf7\xb8\x0cN\x05-\xd6\x9es,\x08\xbb\x89\x8f\xf4Tfb2o&amp;\x82&amp;-\xb1K\x10\xe7\x01\xc5\xd7\x96\xec\xc7\xb6]\xd1mraU`\x04E\x1f\x02\x93\xc9\x98\xfb\xcel\xf1\xd6\xcd=\xae\x1f.\xc9\xfd\xe1\x89e\x937\xaf_\xe7`o\x8f\xcd\xcd\xad\x13a\\\'\xda\xb0\xba\xae\xa3\x8b\x91zT\xd36\xd6hN\xd1(%\x0e\xc7l:\xe1\xc2\xa93L\xea\xb1\x85\xc0\xc1\x00:p\x0e)\xcc)\xcd\xb9\xe4J\n\x1e\xb2&amp;4f+\xffSGN\x11\x17\x02\xce9\x9c\n)\x16\x03V\xc5!\xc5X\x12\xb9\x8d\xf8\xc9\x18\xe7&lt;B6C\xc9j\xc6\xa8\nI\xc9]\xb2\x01\xd6\x14\xcb +\xc5\x13\xa6!G\xcb9Qx:\xe6\xbd\xbc\xe0*{\x88\x9c\xf3\x88\x0b\xc6p.\xb1\\E\t\xc1\xb1\xbd6\xe1\xec\xe6\x94[\xf3\x86E\xdb1\xae\x82U\x89Y\x99\xce\xa6lnm\x9f\x880\x08V0\x9d\xc8K\x0b2\x0e\xcat:\x1b\xcal)\xbd\xb2\x9c\x95\xad\xf5\r\xb677M{\xaa\x84\r\x9cC\xca\x10j\xaf\x9f\xe0Cm\x14\x17\x11\xdc\xa8\xb2\xb6H\x8a\xa0\x11rD\x82\xc3\x05\x03\x16s\xec\xc8\xa95\x0e\x15Z\x90x-\n3j\xd4\x1aU$\x04\x9c\x1f\x99!\xa8"e*\x1agI\xbf\xf3\x81P\x8fq\xa1\xc2\x87\x8a0\x1e\x9bQ\x8e\n\x1b\x95L\x8a\x1d\xa9]\x90\x9b\x06W\x80U\xef\x9ca`9\x1b_\xb9\xc8\x06 0\x19\xd5l\xaf\xcf\xd8\x9aM\x8c\xf7\xa5\x86\xd4;1\x9e\xda\xc1\xfe\xfe\x10\x96\xef\xf6ub=\x16\xaaT\xa1b6[\xc7;O]UT!\xb0X\xccq\xcb\x86\xe9\xda\x8c{\xce\x9cac6C\x82\x19\x94jF\x1c\x86)%\x87q\xdc=\x0e%\xd1\x87\x19\xcb\xbbB-\xe6a\xa2\x92\xda\xd6\xc6\xaf\xca\x8f\x16\x1f@\xd2\x00\xae\xa6\x023\xa0\x90\xda\xc6Pv\xadA@\x1d\xe50K\xde\x15\x0c\xc0T\xcc\x83\x05\x1f\x88\x1a\x87\xfc.\xa5\x84\xaf\x02*\xe5Q\xc9\xdeB\xb7\x02\xc9\x06h\x153*U7\x84o/\x8e*\xd4\x9c\xde\\c\xed\xd6&gt;k\x8b\xd1\xf0\xb0eU\xae]\xbb\xca\xed[7\xd89}\x8a\xe9\xf4\xee\xd3gN\xaca)6(q\xee\xfcy\xbe\xf3m\x83\x18B\xf04\xcb%\xb3\xd9\x8c\xcd\xd9\x1a\xa7\xb6w\x98Lf\x04o\xde\xc6\xf9\x80\x13\xf3v6\x18\x01\x0e\x8fd\xb5\x8aO\xc6\xa0\xd1\xc2E\x17\x11\xf1\xf8z\x84zo\t\x7f\xb2\xe1\x06)}\xb8\x1c\x1b\xeb\xeb5Ks^\xb2\x1a\xc5\xd7\x98,\xb4:\xeb\xf6\xa9\xf7\x90\x8c\xf0G(\x7f\x87\xe5oN\xbd\x85pl"\xc7\x86~\xb2\xe5`\xde\x9b\x18\t\x82\xab\x84\x9c\x95\xac\x19\x17B\xc9\xdf,$\xfb\xaa\xa6\xce\xca\xa8\xaa\x98\x8eG\xacO:\x0e\x97\x8d\xf5&amp;\x15\xf6n\xdff\xf7\xf6m\xa6\x93\xe9]7*8\xc1\x86%"TU\xc5\xf9\x0b\xc6\xe7\x96\x92;\x8cF#RJ\xec\x9c\xdeam}\xdd\xbcS\x1f\x0f\n\x1dX\xb0\x96\x8d\xf8@N\x8dy\xa9P\xe3\xb27n:\x80\xcf 6\x95\xe3]`\xf5\xf8\x97\xeaQ\xc1\x95:.\x84\x8a\x1c\x8d\xab\x95u%\x1a"U@\x9d\x85\xc7\xbe\xaa\xec\xabOq\x1er"\x17\xda\x8c\t\x86\x08\x92\x93y@1\xd8c\x80\xcf\xc1\n\x80l\x89\xbf\xe6\x04\xd1!\x95/\xd0I6\xaf\xed=\xc1\t\xe3\xbab\xd9\x19\xdd\'\xab\x1aEG31E*W\xdf\xed\xe3;\xb9\x86\x05\x90r\xe6\xf0\xe0\xd0\xf0\x9f\xaa\x06,\x94\xe0&lt;\xdb\x9b\xdb\x06C\xa8aZF\xb6\x030\xaf\x91\xb2\x92\xdb\x06\x1f\x1c\x12\x04I:L\xcc\xa8&amp;\xf3&gt;!P\x05\x8fH0\x16\xa88R\x9f\x94\x03h\xc2Y=\x80\xa8\x90\x11\xb4\xeb\x06\x8cLR_\x18\xa8\x11\x00\x9d/a\x0c4\x0bdA\xa3\x8d\xd0S\xf8\xf46\x1d&amp;\x80G\x82\x94\x1c*\x92Eqb\xc6\x99VV\x0e)\xe1\\E\x99\xb9f\\\xd7\x8cB(RI\xc6\xe7w\xc5@EN\xce\xb4\xce\xc96\xac\x94\xd8\xdf\xdf3\xbaH]\xe3TY6\r\x93\xc9\x98\xf1t\x8a8\xb1\x1c\xa8\x00\xa8&gt;x$\xa9y\x89\xd8!.X\xdb\xc5\xb8+\xc6B@q\xce\x13$\x98L\x91\x9a\xb1\x89\xab\x8d\xc8W\x0c2w\x1dZ\xb2.!\xe2|\xc0\xfb@r\x1e\x15E\xbb\xbe=\xe4Q\xc9\x03&lt;\x90\x8bf\x03\xdd\xc2\xc8\x84\xd9&lt;\xa8*\xa8\xd8`Fo\xa8\x0e\x01\xef\xcd\xbb\xa5h&lt;+\xa1\x84F\x83E\x12\xc6\xb5\x17\x1fp\n\xd3P\xb16\x1d\xe3\xdc\xbe\r\xc9\x8a\xe9&lt;\xb4M\x8b\xf7\xce&gt;\xc3\t\xb8N\xc6\xbb\xf8\x9f\xb9\xaa\xaa\xe2\xcc\x993\x08BUY\xe7\x7f2\x9dq\xfe\xccYN\x9f\xbd\xc0\xb86x@TK{\xc6\r\xa3\xeen4\xb5\x83C\xed\xe0\xc5\xda:\xce9&lt;&amp;QD\x7f\xe0%\xa1\'&amp;C\xdb\xcbD\x8e\xa8%\xd9)\xaf\x92w_\xbbB\xb4k-l\xa9Z\xf0\xf5\x1e\xed\xdaa\xaa\xc7\x87`m\x9c\xd2\x16\xb2\x84\x1e\xb2Z\x83Z\xb3%\xfe\x14/[\xf9`\xad\x1e\xa1\xe4Y\x85\x1dQ\xa8\xc6V\x19*\xa3\xbabkT1\xae*\x16m\xc2;!\x97p\x1aK\x8b\xea$x\xad\x13mX\xde{6\xb7\xb6P\xa0\xf2\x9e\x94\x12\xb3\xe9\x94\xed\x9d\xd3\xe6\x1d\xda\x0e7\xae\xa8T\xa8\xb0P\xe6\x827#\x11\xa3\x05\x93\n\x1a\x8e7\x04=\x1b\x0eF\x8a\xe4hm\x9d\x9c\x13N}\xdf\xd5\x055D\xdd\xf5}B\xdc\x90\xa4\x8b\x80\xf4\xdc,1\xf03\xa7l|x\x1f\xc8\xb1%\xa6\xd6\x84H\x82X\x12\x9f\x1d\x9a\xa3y\xd22z\x88\x08\xea\x1c}r\xee\xc4z\x86"\x8a\x1b\xf08\xfbZ-^\xc9\xf9\xc0H\x1c\xdb\x9b\x1bL\xeb\xdb\xdc&lt;Z\xe0\xc5\xe3\xc5*\xe8\xcd\xcd\xcd\x13\xb3\x14\xe3D\x1b\x96\x14\xea/\xaat]\x87\xe6\xcch:CU9\xb8q\x83\xb5\xedu6\xa6S\xd6\xa6S\xaa*\x14\x90\xd4\x93S\x1a\xe8\xc5\xe6\xc0\x8c&amp;\x93\xda\xd6\xc2Pi\xc7\x18\x99\xcf\x0e\x0c\x85L\x19\xb2\x10\x8fV#\xba\xa5\x11\xec\x04g\xa6Y\xd7\xf8l\xc3\r\xea\x84\xdc\x9a\x16DB,oJ\t5\xe0\xbfP\xfc,W\x9aw\x91.*1\x19\x9f\xac-=\xc6Q(9\x99sx\xc0\xa3\xe0M\xc7TJ\xb5\x97\x15\x1b\xd9/\x9e\xab\xaa*v6\xd7\xd9\\\x9b\xf0\xe6\xed\x03\xc0z\x921%\x8e\x0e\x0f\x87\xb6\xd7\xdd\xbeN\xb4a\xe5\x9c\xd9\xdb\xdb\x03 v\x91\xd1\xa8\xe2\xcc\xce\x16)u\x88\x136\xd6\xd7\xd8\xdc\xd8\xa0\xaa&lt;8\x0f\x12\x8cY\xea|\xa1\x97\xc8\x908\xf7\x95\x1c\xe2\x8c!*\x9e\\\xd5\xa4e\x0b\xce\x93\x9bH\xdb\xb5tm\xcb2.q\xe2\tjs\x85\xa1 \xdf5\xady\x0f-\xe1\xca`N\xba\x94 \x05#\xfe\x95\x91\xfeN3m\x1b9j\x12{\xf3%\xfb\x87\x0bv\xdb%9f\xa6\xe3\x1a\xe7\x03\x1b\xa1bTC\x15&lt;U\xf0x\x07U\xf2\x05\xe7r\x85\x91\xe1lt\xac\x18L\xf0\x9e\x8d\xe9\x1a\xe7\xb66y\xf1\xca\xad\xa1`I)q\xf3\xc6ur\xceC\x0f\xf1n^\'\xda\xb0\x04\xa8kk@7\xcd\x82\xf5\xb5)A\x84\x1b\xb7o\xb3~\xfa\x14\xa7\xb67\xa9\xbd+\xb2\xda\x86E9\xe7\xad\x9d"J\xce\x18\xadX\xcd+\xb9\xe0HM\xcb\xa2Y\xd0\xe5L\x13;\x96GKn\xee\x1fr\xf3\xd6-\xe6\xcb#4G\xc6NX_\xdfd}:\xa1r0\t\x81\x90@\xb3\xc7\x87\x8a\xda\x05\xb2\xeb\x88N\x88\xa2t\xa9!6J\x10\x81\x08ML\xcc\xdb\x96\xc3\xf9\x82\xeb\xf3\x86\xdd\x83#\xf6\x0e\x0e9l\x1a\x8e\xa2\x89\xdez\xef\x99\x8e\x02\xeb\xa3\x8a\x9d\xd9\x84\xd3\xebS\xea:\xe0\xc5S\xa7H\xa8\x02\xd5x\x028\xc3\xb5\x9c\x0eT"\xef&lt;gw\xb6\xd9\x9c]\xe5`\xd1\xd0\xa5D\xecZ^{\xf5\xd5\x01\x96\xb9\xdb\xd7\x895,\xe9\xf9PN\xc81\xb2\x98\xcfI\x9b\x9b\xdc\xda\xdb%\xa6\xcc\xd8;f\xe3\x11\xe2M&gt;HJ\xfe\x83(\xce{\xa3\xa5(\xc4\x94\taDV\xa5k;\x16\xcb\x85\xc9c\xef\xddbww\x8fk\xb7nr\xe3\xd6m\x8e\xe6K\xbc\x17FU`V\x05\xda\xb6!\xb6\xebL\xa7S\x18\x8d\xa9%\xe2\xb2g\x1c\x82\xc1\x9e\xceAU!\xb9\xc5\xb5\x8e\xd8\xcc\x91\xaa&amp;\'X.\x17,\x9b\x86\x83f\xc9A\x91\xfc\xf6\xce\xc2\xa5\x17\xc5\xd7F\x9f\xa9\x83\xc7\x05G\x1b;n\x1d\x1e0\xaak\xc6UE\xed&lt;\xe3\xc9\x18\r5\xa1\n\x96\xfa\x15\xfd\x070|mc4\xb1?\x8b\xf1\xecAy\xe9\xa5\x17\x88\xb1\xb3B\xe7?!\xef\xff\xfa\xab\x9f~\xde\xdf\xdb\'\xa6h\x8c\x045r_.e\xf9\xc8{|\xa8\xf1R\xc6\xd9\xc5#@\xd2d\xf3}ue&lt;(\xe7H]\xc7\xbci88\x9as{\xf7\x16{{\xbb\xbc\xf5\xf6\xdb\xdc\xda\xbb\x85w\x81\xd9d\x84jd6\x191\x1bU\x8cF\x15"\x99*\x18+\xc2\x8djK\xc6\xbd\'\xe7\x96\x98\x95\xaa\x9e\xa0]\x8b\x17\xe3yi\xd7\xd1\xc6H\xdb.h\x9a\x8ef\xbe\x84\x9c\x19\xd5\x96tO&amp;\x96\xdb\x8dF\x15\xd3\xaa\xa6\xf6\xc6Lh\xbb\xc8|\xb9\xa4Y.H13\xf7\x8euq\xa8\xaf\x98\x86\n\xdfc\x14\xd927q\x06\x1e/\xbb\x8e6\xa5"e\xe4\xb8}\xeb\x16m\xd3\x14\xcc\xef\xee^\'\xd6\xb0\xc0\xbc\xd6lfx\xd5db\x9a\xa2\x02\xc6\xc5\xf2fDNAB(\xc9\xb8\xdah:VI9\xef\x81L\x8c\x89E\xd3\xb1l#\xaf\xbf\xf9\x16\xfb{\xd7\x10\x85s\xdb\x1b\xdc{f\xa3\x8c%(\xe4\x96\xb4\\\xa0\nu\xa5\x8c\x9c\xa2\xcb9\x8c\xa6$\r\xe8h\x8a\x1bM\xa9\xfd\x84\xa9w\xc4\xf9!\xa1\x9e\xc2\xb2a\x99\x16$M\xb4\xed\x92\x83\xe5\x9c\xdb\xfb\x0b\x16\xcb\xd6\x08\x7fU xG]M\x18\xd7\x81\xba\xf2\x98\x02R\xc2\xe1\x18\x05\xa1\x0e\x8e\xa6\xcb\xa4l\xa0\xeb|1\x071\xd1\x92\xe9\xb8\xd0\x9b\r\xaf\x80\x9c\xa9\xbd\xa7\xf4\xc6\x07\x0e\xea#\x8f&gt;&gt;\xec\xea\xb9\xdb\xd7\x895,)\xd4\xdc\xb3\xe7\xce\x11| I"kf\xd9%\xc6U\xa1\x1fSj\xf7\xa4h\x10R\x190M)\xda\x14s\xb2\xd9\xc3e\xd3\xb0wp\xc0\xd1\xe1\x01\xa3\xc9\x84\xb3\xd59\xc6\x01\x9c6H\x8eT\xce\xa1qI\xbb\x8c\xb4\xc9\xb3\xe8"\xb9Ypx\xb8\x8f\x8a\xc7I\xa0\x1eO\xd9\xbep/\xdb\xa7/\xd8\xe0h;G} \x9a\xbc\x8c\xb5S\x9a\x96\xa3\xc5\x82\xb7n\xecq\xed`\tdj\x810\xae\xf1\xf5\x88eL4\x9d%\xef\xeb\xd31!x\x02\x0e\xd5\x96\xa0\r\xea\x85\x06P\x0co\xb3\xbet.a\xcd$/\x01P\xc5\xa9%\xe9\xaa\xa6l\xd3\x1509v\x1d!T\xff)\x14\xfe\xdb\xae\xd9tF.\xa86\x00R\x08t\xda\xd3FJ\x1eV\x84@T\xecF;\xb1\x9b\xdd4\x0b\x0e\xe6G$M\xd4U`kc\x03\xd1\x19^\x1bHeL&gt;+m3g1\x9fsx0g\xde\xb48\t\xe4\x1cic\xc7\xb2\xe9h\xb2cr{\x9f\xf5\xd3\xe79\xbb\xb5\x8e+\x93\xd2\x9a\x13I2\xd1\t\xad\xc0\x8d\xc3\x05\xaf]\xdf\xe5\xb0\xed\x90\xe0\xac\x01\xbe\xbf@\xea\x9a\\`\x8d\xca\x07\x02\x99qp\x9c\xdf\xd9\xe0\xcc\xc6\x94\xd1x\x06\xb1\xa5I-\xa9\xeb\x10\x1c\xc994O\xd0.\xe1\n\xf7J\xb2\x92\xbc\xe1a\x953\x9av\xe5\xac\xb1\xfd\xf6[or\xb0\xbf\xcfh4\xb6\xd4\xe0.^\'\xde\xb0rayzgD8\x15a&lt;\x99\x15\x9aLaf\xf6\xd38b(\xb4\x88\xc1\x0b\xed|A\xd3.H\xa5\xbf\xe7G5\xb9Y\xe2$\xe0rb\xd9$n\xdc\xde\xe5\xd57\xae\xf2\xce\x8d\xeb\xec\xcf\xe7\xcc\x9b%\x958\xc6\xce1\xf5\xc2lb\xf3\x84\xcb\xb6c\x7f\xde\xf2\xca+\xafr\xea\xc9\xf7\x14\xae\x97\x10;[F\x90c\xa4m\x1an\xef\x1f2_.\x88Qi\x1a\x9b&amp;\xaa\xc2\x88\xdb\x87\rMn\xe8r\xa6\xae\x03\xf3\xa39\xeb\xe31W\x0e\x16\x9c\x9e\x8d\xb9gk\xca\xb9SkL&amp;\x9e\xce\xb5\x08\x82w\x8a\xc4\x96\\\x8d\x0c\xe2\xd0\x84S\xd3\xe8\x12\xf1\x8c\xcb\xa8\x98\x17!\x8bp\xeb\xc6\rb\x19\xda\xb8\xdb\xd7\x897\xac*\x04rJ\xd4\xa1\x02\xec\tE\x95.\xe6BWV\xee\xa0\xb6eEK\xb2\x9eS\xb2\x91\xad~"fT\xe1D\x89\xcd\x92\xb7^{\x8d\xef\xbd\xf2*/\xbe\xf16W\xf7\x0el\x0068\xc6\x95cq\xb4\xcf\x85\x8dM&lt;\x8ef\x7f\x8e\xe4L\xe5\x85\xe980\xdf\xdb#u\x91\x10\x04\xc4\x06Q\xf3QoX&amp;\xaa\xeb\x9dP\xd5\x9e\x9c\rW\x9bL\xa7\\\xdd=`&lt;[#\xe4LL\x1d.\x04\x9a\xac\xec\x1d.\x98\xcf\x97\xe4\x9c\x88\xa9\xe3\xfc\xe9-\xea\xba\x02\x15j\xef\xf0dR\xb74\x07\x14\x9cMS\xe7\n_\x94\xa2\r\xb1W\xbc\x08\xedb\xce\x8b\xcf\xfc\x80\xf3\x17\xee\xb9\xdb\xc7v\x82\r\xab\x889_\xbcp\x81S[\x1b\xcc\xe7\xadm\xe5R\xa5\xf66\xea^W\xc1\xe8\'h\xe9\xc1\xf5\xf4\x15\x9bVicC\xdb5\xc4\x94p\x92\xe8\x9a\x96xp\xc8K\xcf\xbd\xc8W\xbf\xf7=n6\x1d\xe7\xef\x7f\x94\xd3\xef9\xcb\xde\xdeu^}\xee\xdbT.1\x9d\x8e\xb9\xe7\xfc\x05\xaan\xc1\xf5\x1b\xb7\xa8Gc\xb6\xb67\xd8\\\xdfd\xec2\xed|\x8e\x1b9\xbc\x0b\xa8H\xe1f9\xb28\x82\x13\xd6\xc6\x81eTn_\xdfgm6\xe5\xf4\xd6&amp;\xef\xcc\x97\x1c\x1c\xec\xd3v\x11_\x07*\xef\xd9\x9e\xce\xb8\x7fm\xca\x0bo\xbd\xc3+\xef\xdc\xa0M\x9b\x00\x9cZ\x1f\x1b5Z\x1c\xb5\x9fP\x85\x80\xe6\x0eI\x01\xa3\xbfZ\x83Z\xcbg\x0f\xe2\xa8\x02\x9c\xdd\xd9acc\xe3Dx\xac\x93\x81\xa6\xfd\xc8\xd5o\xf1j\x17\x0bvvN\xf1\xbf\xf9\xcb\x7f\x15\xb2\x0e\xdb%\xe6Gs\xba\xce\xa4\x19)\xf9\x94\x93"\x92\x91L\x99o\xb9\\p\xb0w\x8b\xe5rnS9\xce\xd3\xed\xed\xf2\xcd\xaf\x7f\x9d\xaf|\xfb\xdb\\\xbf\xbd\xcb\x13\x8f&lt;\xc1\xc7&gt;\xf6\xd3\xcco]cy\xebm6&amp;\x81\xd9t\xcc(TL\x830r\xca\xe6t\xc4\xb8rlnop\xea\xfc\x16;\xa7\xb6\xc9@l\xa3\xed\xdd)\xf4g\xcd\x19\\`:\xae\x98\xd4\x81\xb5I\xcd\xa5s[\x9cZ\x1b\xd3\xee^\xe7\xfe\t&lt;\xbc3\xe1\x91s\x9b\xdc\xbb5\xe3\xdc\xb4\xe6\xfc\xd8\xe1\xbb\x05\x0fl\x8e9\xbb1\xa1m[^\xbf~\x8b\xbdyC\x97\x95\xf9\xdc$/\x8d\x9b\xd5A!\x0b\xf6\x9c\xff\x9d\xd9\xda@C\xf3\xc0\xf9\xb3g\xb9\xe7\xdeK\xd6\n\xbb\xcb*\xeb\'\xd3c\xa9\xf2\xf2\xb7\xbe\xc93\xff\xea\x0f8X,\x99\xb7\x1d&gt;u\xa4\xdc!T\xa8\xc0d:\xc1\x88\'\xae\x0c\x97\x16\xceT\x8e\xa4vI\xf0\xc2\xda\xfa\xba\x85N\'\x1c\xdd\xb8\xc6\xf7\xbe\xf5\x1d^}\xf3\n\xe7/\\\xe4\xf1\xf7l\x12b\xe4\xe8\xf9/\xf3\xf0\x1a\x1c\xb8)~kDE\xa6\x12\xc5\xe5%\xaev\x8c\xb6\xd6q\xa1bsm\x9d\xb5\xf1\x1a\x9b\x9b\xdbT\xa3\x11\xc1\x0b\x1c\xedAg\xfc\xad\\\x86\'&amp;\xbeb\xad\xaeXd3v\'\x9eQ]\xb1\xee\x04\xe7\x94Pf\x1bm\x80\xc7\x86Y\xc7\xd3\x19\x9b\x0e\x16]&amp;i\xe6\xd6\xe1\x11\xeb]`c\x14\x98\xef\xedS\xe3\xf1cl\x9ePm\xbc\xdf\xe7\xcc\xe6dL\xe5\x1cA \x88\xf0\xfas\xcf\xf0w\xfe\x9b\xff+\x7f\xed\xff\xf4\x7f\xe6\xb1\x0f}\xb44\xe3\xef\x8e\xf7:q\x86\xa5\xaa,\x0e\x0e\xd8}\xe5%\xf2\xd1\x82\xf6\xe0\x80\xa3\xbd]&gt;z\xefy\xbe~\xe5\x06\xea&lt;;\x9b\x9bEt?\x14vh\xc0I\x80ld\xbb\xa8\x89\xe5\xed\xab\xb6\x82D\xe1\xf0\xe0\x80k\xef\xbc\xcdtk\x9d\x0f\xec\xac\x13|\xc5hm\x8b\xdc5h\xd7\xb09v\xc4\xb5\x1aG\xa4Y\xce\x891\x924\xd35\x0bb\x17\xa9\'\xebl\xcf6\xd8\x18M\x19\x87\n\xc96\x12\xe6BMv\x81P\x8d\x08\xa3)n\x1e\xa9\xab\x11;\xa31\xb7\xdb\x96.Bl\x96\xe4\xb6e2\x19S\x8d\x02\x95&amp;D\x85\x98\x81l=H\x82C\x05\xc6c[cG\xd71rB-\x81\xf1hB\xbblA\x13\xa3\xa9G\xba\xce\x84Jrf:\xa9p\x9aIYX\xabk\xd6\xc9\\\xfb\xe1\xf3\xfc\xd1?\xfde.=\xfc(k\xdb;w\xed\x1cO\x9ca\x01\xec\xbd\xfe\n\xcbg\x9fEo\xecr\xee\xe2\x05\xb6\xd77\xe8\xf4^\xfc\xe9\xeb\xbc\xb3\xbf_\x84\xf6}\x99\x88)8\x96$\xba\xd2\x14\x0e\xbef4]\xa7\xbdy\x95\xc5\xc1\x111)\x1b[\xdbL&amp;#*\xefH\xcd\x92\x94!\x87\x11\xd1g\xb4\x12\xa2\xed\x06\xc0\xc9\x84\xa3\xa3#\x9a\xbd\x03\x9a\xe5\x82\xc9\xe6\x0e\xe7/\xdc\xcb\xe9\x8dM\xa6\xeb\xeb\xd4\xe3\xb1\xa9\xff\x89G|\x85\x13OU\x8d\xa8\xeb\xc8h\xd4\xb2l[\xc6\xe3)\xdbE\x1f~_\x96\xa4h[\xc2\x1c\x15\xf5\xb8&amp;xO\x1d*\x9b\xc8)\xfa\xb8I\x1c\xb1\x0c\xd0\x8a\xaf\xa9\x9d0\xad\x02\xe3\x10\x08\xe3\xda&amp;\x7f\xc4\xd9\x94w\xa1MO\xc6cB\x15\x8893\r\x15\x8f\x9d:\xc5\xd1\xc1&gt;\xd7\x9f\xfd&gt;\xbbo\xbf\xf5\x9f\x0c\xeb\xf8%\xc0\xe1[\xafq\xf4\xd2\xf3(3F\xf7\x8f9s\xe6\x1cZ\x05N]\xba\x9f\xef\xbd\xf8"o^\xbd\xca\xfa\xfa\x9a\xd1R\xca,`N\x18\x9f\xbc]\xd0\x1d\x1e\xb2\xb8}\x1d\x01\xa6\xeb\x1b\xd4\xed\x82\xd1\xe6\x16"\x9e\xd8.\xd0\xaa\xb2\x1c-g\x92v\xb4\xd8\xcc`\xb3\\rx\xb8O\xbb\xb4\xcd\xaa\xa7\xcf]\xe4\xdc\x85{\xd9\xd9&lt;\xcdt:\xa3^\xdb4D_\xbc!\xfe\xce\xa31\x19.\xa5\xc28T\x1c:\x0f\xe2\x99\x8d\xa6\x8c\xc5\x10\xf2\xfdECJ\x99\x18[\x0e\x0f;j\'\x8c\xeb)\xc9\x8b)4;G\xd2\xcc\xc8y&amp;\xd3\x11U]\x15\xc8\xc3^K\xb2\x16\t\xef\x12\xfa\x15\xd0\xccl6c6\x9b\xd0,\x97&lt;\xbc\xb3\xc3\xa6\xf3l\xc6\x8e\xe6\xf0\x80\xb4\\\xdc\xd5s&lt;q\x86\x95R&amp;\xde\xdcE\x9b\x88\x9fxH\x8ez\xb6\x0e\xe3\x80K\x89\x8d\xd9\xcc6c\x05[n\xa9R\x19A/g\x13I\x9b\x80w\x01\xe7=]s\x80,\xf7\xa8\xbc\xa0\xcb=\x96G\r]RD\xbc\x85\xba\xb6a~\xb0K\xd3,\x88]K\xec:\x9c\xf3\xaco\x9fb2\xaa9\xb3s\x8e\xd9\xda&amp;\x93\xe9&amp;\xf5djD\xbe\xa2\x19\xe1\x04r\x8cTkS\xe2\xf5}r\x8c\x04q\xd4uE\x9b\x13\xa1\xae\xc1e&amp;Ud\xea={mG\xe5Gx\xe7H\xb1\xa3r&amp;\x7f\x945\x13D\x98Mg\x04/\x8c\x83c6\x19\x13\xc2\xc8\xf4\xb8\x92\x16\xfe\x98/|ESi.j \x8c\xea\x9a\x91\xc0\xd9\xf5)\xdd\xf5\xeb\x8cUY\x1b\x8f\x19\xcf\xee\xae4\xf7\x893,UE\x92\xe22H\x97\xd0\xc5\x82jm\x86\x9b\x8c\xe1\xe8\x80S;\xdbl\xec\xde$\xc5\xce\xb8\xe4)\x17\xd5\xe42\\\x9al\x9a&amp;\x84\x80\xc8\x94zR#@sp\x93\xday\x16\xf3%\xcd\xe1\x9c\xec\x1c\xae\xac\xf2\x1dO&amp;\xe4\xaab\xe4\x9cm\xae\x1fOX\x9b\xad3\x99\xce\xa8\xeau|=.\x87k\xabL$\x83\xa6\x16I]\x19#3O\xe2\xbdgT\x8dmF\xd1\x0b)\x19X\xb9\x892\xab&lt;\x8d\x9aTx\x0cc\xaa\xca\xe31~U\x15**/\x04\x17\xa8\xea\xda$&amp;\x15\xb2wdWTM|e\xc2\xb6e`\xc2\xd8\xa7\xb6Gq}\xb4\xc6\xa4\x0c\x9a\xd4\xc1Sol0\xd9\xdc\xba\xab\xe7x\xe2\x0cKD\xa0\xaa\x8c\x9b.b\x03X\x9aHMKppag\x9b\xab{;4\x8b9U\x99\x05L8$g\x90\x8c\xf3\x81z\xec\xc9\xb1%\xc4\n\x11\xeb\xfeW~\xc4r\xff&amp;^&lt;\x01\xa5\x9d\x1f\x924\x83/3\x81\x93\x9a\x11\x9e\xb5\xd1\x14q\x99\xe9l\x03?\x9a\x10\xc6k\xb8z\x8a\x0b\x95\x8d\xc0\x8bG\xbaH\xce\x1dt\xd6~1\x015{\xef\xd3\xc9\x04]*1\xb5E\'\xd5\x86V+\xef\x19k\xa6m;\x9b\xc2Q\xc1\x05\x87\x17\x87\x17eT\x8f\xa9\xab\xdar(\xcaD5\xe6\xadr\xc6\xfa\x83U\x8d:\x93&lt;\x02\xa8\xc4\xb1\x16\x1c\x97\'\x13\xa6UE\xe3&lt;\x92Z\xd6wN1\x9a\xcd\xee\xea9\x9e8\xc3r\xde\xe1\xc6#\xac\x19h\xb8M\xda\xbfMs\xb8 l\xcc\x18\xd5\x15\x0f\x9d;\xcf\xbcmL\xfc"\xdb\xd6\x08\xe7e\xe8\x8feU\xc4U\xb8\xba\x06l\xb0TU\xf1\xa3\tU=!8\x0fk3\xda\xc5\x01\xb3h\xfdE\x1fj|V\xeajl\xefc4\xc2\x8f\xa7\x84\xd9&amp;\xf8\x80\xb1\x89\xd5\xb8N!\xa0M&amp;6s\xdbP\x11\xbc%\xd1\x1aq"T\xa31i\x91\xc9j\x9es\xe4\x1c.g\xeb/\x8eG\xb4\xd1\x86em\x88\xbf\xd0\xa7s"u-U\x18\x15\t%\xa3V\xe3\x0b\xcf\xccQh\xcb~`\x93\xaeMF&lt;yv\x9b\x8d6\xe2\xc5\xe4\x8f\x88\xca\xec\xf4\x19|}wY\x0e\'\xce\xb0\x00\xaa\xb55\xfc\xb8F\x9b\xc8x:B\xe7\x87\xd0\xb4\xe0,o\xd8\x9aN\x87\xf5\x1e\xe2M\xeb\x00\xd1\x81\xec\'\xde\xa3\x85\xfc\x07\xd9t\xdc]f\xb6q\x81\xd8\x1c\xe0\xf0\xc4n\x81\x0b\x81\xb8\\\x94\xb2\xdfz\x82\xa1\x1a[\x88\x15S\x84\x89\xb1\x83$\x10\x13\xe2\xc1\x85\xdaDq\xbbE\x91\n\xc4\xb4\x1f\xbc\'\x04%%%T\x15\xba\xd0\xd2\xb7\xb4j\xce;\xa5\xf2c2\xc9\xf4\x1cJ\x1f*\x93\xc9\x02\xdeD\xbd\x89\xcd\x82\x10*RV\x92f|\x98X\x03&gt;\xd8\xec\xe3 \xcb\xe4\x1c\xeb\xe3\x9a\xc9\xda\x14\x9d/q\xe2\x08\xa3\n\xda\x05\x93\x9d\x1d\x93\x1d\xb8\x8b\x08\xfc\x893,\x11!L\xa6T\xb31y~\xc4h\x1a\xf0\x93)\x1b\xa7\xce\xb3\xe8\x16\xdc~\xe3\x15fg\xefAFE\n\xbb\xe7\xb6\x97\x11x\x15A*\x8f`\x95[\xaf\xab\x90\x93\r\x8aJ\x98 &gt;\x11DH\xa9B\xe3J\xcf\xdd\xd7#\xe3W\xa9\x81\xaa\xed\xe2\x90\xa6IH\x18\xe3\xba\x96\xd1\xfa:n2"H /\x8f\x00E*\x8f\x97@r\xfd\xe4ODFc\x9cxb\x1bq\x0e\xa6\x931U5\x1a\xa4\xc3E\xfb%N\x86\x98S\x10\xfc\xec k,\x03\xb8\x0e\xf1U\xd9\x7f(\x03\xe2.R\xb6\x8cy</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9czTXtRaw profile type xmp\x00\x00H\x89\x95VY\xb2\xa30\x0c\xfc\xd7)\xde\x11l\xc9\x92\xe08\x14\xcb\xdfT\xcd\xe7\x1c\xff\xb5\x0c\t\x04\x080\xa1b6-\xadv\xcb\x86\xfe\xfd\xf9K?\xf8e.\x99\xa4\xf7F:ol\xf0d\x83\xa9\x17\xcb\x9c\xe2\xdez\x1b]\xe2\x9d\x0c\xec\x96\xad\xd8dl*\xdd\xfc\xfcm=\xb1\xcbH\xa9\xe3\xf4y 4\xc3\xc9\xa4S.\xa5\xd8.\xec\xfc.B7^p$\xe9\x10j"\xaf?\x1e\x1dV&lt;\xda\x04C\xe7I\xb2\xb4q\xe0*\tcd\x8c\xc3\x1c\x04g\xf1\x16a\x81\xc6\x1b\x1e"\x01\x0b\x05\xac\xd4]\xe1\x02(u1\xc1}\xeb\t\xee-J\x1c\x81sy\x8f\xa2\xd9\x80\x08u\x06P\xf6c\xb0mIp\x92cA\x08\xac\x08\xd8\xf3H\xafb\xc2\x10\xa3\xc2Q\x83\xc6\x80\x0e\xc8(\x92GY\x08=\xc3]\x13t^\x08pK8\x9f\x9b\xbd\xcb\xcb\xd6\x03\xf9\x85\r\x01to\xed\xab\x8cz\x97m4\x8f2*\x95`\xc8\x0c\xb4j\x84\n\\E\xab\r\xd7Z2\\\x1c\x7fAi\x9c\xc2\x18\xa3\xe1\x15\xb4\x82\x82\x12\x0f\xc8\xc5\xa2\xd2\xf3\xf4&amp;\x15\t\xcf1\x85\r\xddC\x9f\xf9\x0b\x1e\xaeh\xa0m\xce\xf3\x89~&amp;\x0f\xba\xd3\xc7SyP\xc9U\x17\x08f|\xd4IU\xedh\x1b\x9b\x08\xbc\xa4\x1cMp\x1e`\x85&gt;\xa4\xb7V\xd2w\xad|$\x0b&gt;\xa1\xb0\xbd%\xed\xdaTPo\xbe\xd6\xd4"\x97\xe5\x0ekFF\xdd\xe0H\xb588\xc2\\\xa00\xe5J\xf7T\x85\x8f\xa0\x0f1JL\xbf\x06\x03\x181\xf9PN\xa8\xa7\xf0\x80\xb3`\xc4u\xcc\xea\xd1m\xeb5\'\xa2\xcbL\xea\xa0\xbe\xb4s\x12\xcb\x08\x9b#\x05\xae\x1c\x9a\xcf(\xcdE\x91\xb0\x80l8\xa4\xfa\xb0HS\x1ff\x88/&amp;&gt;\xd0e\xe4T\x81\xf2\xb16\x1d\x91m\xd2\xa4\x8en\xeb\xc7J\xb6`\xd2\xda4\x0c\xc5*\x02\xcf\xf8\x1cW\n\x08\xb3\xb2\xbf\xb9\xde\xd3\xac\xd1\x9b\x8aii\xe8=gA\xf5!\xe8j\xb8\xda\x9d\xf7#=\xeb\xed{\x95\xd1\xa1\xb0S\xdd\xeeC\x1e\xdb\x9b\x9e\xf7\xf7u{\xd3\xf3\xfe\xf6t\xbe\xa3\xcd\x8dM\xeb\x0e\xbav\xf3\xec\xb24\xb3|o\xe6%4\xe8p%\x00mb\xf5\xc5Z\xdc\xd9\x14\xabo,\xbe\xa5\xf5\xceq_y\xd9\x98\xaf\xd6\xfb\xc0tG\xe2S\x0e\xe9~\x0f}\xc6!\xbd\xbeD\xbe\xaf\x8e\'\x1c6\xe8\xfd\xf4\xb9 \x9e\x7f\x8d\xcc\xa1\xb7\x0b\x06\x8a\x0f\x95\xe3\xe8\xc1\xa6\xc4\xde\xe7\xd8\xed*-\xd5\x9a\xbe\x9b\xff\x9f$i\xa5s\xefv\xd3.\xf5\xdbi\xf5\xa3\x9d\xd9\xe1\xeb\r\xd5\xff\x02\xc2;;\xf2^\xbe\x97\xd2\x00\x00v\xf5IDATx\xda\xdc\xfdy\xb3e\xe7u\xde\t\xfe\xdei\xef3\xdc)G\xcc\x00I\x91\xd4`Q\x12-Yv\xb5\xdbm\xbb\xcb.w9\xe4\xf0\xec\x88\x8a\x8e\xe8\xe8O\xd0\x9f\xc1\x9f\xa4\xff\xe9\xa8py*\xbb\xcb\xb6dY\x83%k\xb0\x06\xda\xa4Dq\x00\t\x90\x98s\xce;\x9ca\x0f\xef\xb0\xfa\x8f\xf5\xeeso&amp;2\x81\x04\x08\x80`\x1f2\x01\xe4\xb9\xf7\x9c\xb3\xcf\xdek\xaf\xe1Y\xcfz\x96\x11\x11\xe1G\xfa!O\xf0\xbcy\x9f\xdf7\xef\xf3^ "\xbb\x1f\x0b\xf2\xae\xf74\xd3\xfb\x18\xfd\xb71\x17\xdf\xfb\xe1\xf75|\xf0\xc7\x87y\xcd\x0f\xef\xe1\x7f\xd8\x07\xf0\xe1\x1f\xf2!\x7f\xf6\xb8\xdf\xd7\x0b\xf7\xa8\xfb\xcc\x18\xc3\xbb/\xacy\xd7k/\xfe\x8e\xbe\x8d\xec~\xc7\x98G\x19\x86\xf0\xe4\x063\xbd\xd7\x8f\x86\x81\x99\x1fM\x8f\xf5A\x8d\xea\xf1\x1e\xeb\xdd\xdf^\x1e\xf1\xbc\x90s"\xa7H\xce\x89R29\x17D\x04c-\xc6\x18\xbc\xf7\x04\x1fp&gt;`\xadE\xa4\xfa0\xf3\xe8\xe3x\xdc\xf3\xef\xff\xf8\xd10\xac\x1fA\x8f\xf5$\xa1\x0f\xde7\xfc\xc9\x14\xd2\x1e2"\xa3O\xe4\x9cH)\x12\xc7\x81\xbe[\xb3\xd9\x9c\xb0&gt;=\xa6\xefV\xf4C\xc7v\xdb1\xc4\x91\xd9bI\x13&lt;\xcb\xf9&gt;\x07\x87\x97\xd9\xdf\xbf\xc4|\xb9O\xdb.\xb1\xce\xe3\x9c\xc7Z\x8b1vw\x1c\xc6\x98\x07&gt;\xf3\xdd\xce\xecqa|\xfa\xd9\xa7\xdf\xb8~\x84\x0c\xeb\xc3\x84&gt;y\xec\xd3"\x02F\xff]J!\xe7D\x8c=)\xf5\xc48pvz\x9f{wop\xf7\xf6\r\xee\xde\xb8\xc9\xd9j\xc5\xd9\xe9)\xa5$\xc61rv\xb6a\xc8\x91\xa3K\xfb,gs\xbcm\x98\xb5\x0b\x96{\xfb\x1c]\xbe\xc23\xcf\xbd\xc0\xfe\xc1\x01\x07G\x9788\xb8\xcc|q@\x08-\xc6\xaa\xa1\x01\x98\x9a\x93MF\xa6\xe9\xd9d8r\xe1;\xfc\xe8\x19\xd7\x8fP(\x94\'|\xee1\xaf\x96\x87_c\x10\xc9t\xdb3\xee\xdd}\x87\xdb\xb7\xde\xe6\xc6;\xafrvv\xca0\x8c\xacN\xcf8;=!\x8f\x91\x9c`\x8c\x89\x18#cLl\xb6#\xc3\x10\x99\xcf\x02\xfb\xcb9\xc1\xb7X\xe34\xfc\x19\x83\x0b\x96v\xd1\xe0\x9ce6\x9bs\xe5\xcaU\x9e}\xfe9\x9ey\xf69\xae]\x7f\x8e\xab\xd7_\xc0\x879\xc6\xd8\x9a\xd3I\xf5Z\x9a\xcb\x9d{\xb0\xf7\xf2\\\x8f{\xee\xd3\xf1\xf8\x110\xac\'\xf0T\x8f\xc8k\x1fL\x9e\xa7\xa4\\=D\xc9#\x9b\xd5}\xee\xdc~\x937\xde\xf8\x0eo\xbe\xf6}6\xab5\xab\xb3\x13NO\xd7\x0c\x830\x0c\x994\xf6X[\xf0M\xc0X\xcf\xb6\xeb\xe9\xfa\x81\x9c\x04k,\xdeB\xdb\xcch\xfc\x0ck\x0c\xa5\x14\x8a\x08\x85L\x92\x88\x00\xde\x07\xe6\xb3\x86\x83\x83\x05G\x97\x0e\xb9r\xe5i\x9e{\xfes\xbc\xf4\xd9\xcf\xf3\xdc\x8b\x9fe6\xdf\xaf\x06\xa6\xc7\xbb+\x14\xaa\xd32\x9c\x1f\xf7{\\\xc6\x1f\xf6Ez\xd7\xe3G(\x14&gt;\xc1c\xca\x9bv\x86v1Y\xd6+\x95\xe2\xc8\xbd[op\xf3\xed\xef\xf3\xc6\xeb\xaf\xf0\xe6\x1b\xdf\xe3\xee\xdd;\x94,\x8ccd\xb3\x1d\x18FH\xc9 \x05\xbc\x03\xe7\x85R\x84\xa1O\x8c}$KF\xa4`\x8a\x90\x8b\xa5\xa7`\x10\x9c\xb3\x08\x85\\"\xc6\nM3CD\x18\x86\x91\xb3\xd3LI\x91\xbe\x1b\xb8\x7f\xef\x98\xb7\xdfx\x93\xe7^z\x85\x17?\xfby\x9ey\xf63\xec\xed\x1f\xa2q\xb1~\x91\xa9J=\x072\xde\xfb\x8b\x7f\xca\x8c\xebSnXO\xe8Lw)\x89L\xff\xc7\x009\x8f\xa4\x18\x89qD\xa4`\xad\xe5\xf8\xee-\xdex\xe5[\xdcz\xe7-n\xde|\x87{wN\xe8\xfaD\xce\x99\x18#)er\x11\x8c\xb18oq\xc6"Y\xe8\x87\x8e\xb1\x8b\xc4\x98\xc8%\x92K\xc2\x1a\x8b\xf3#1\x8e\x18\x01\xef\rB\xa4Hf\xde\xb6\xe0\x85"\x05\x9c!\x17GLjd1\x9eqz\x7f\xc3\xad\x9bos\xe7\xf6;|\xf6\xf3\xb7x\xe1\xf9\xcfs\xf9\xda3\xb4\xb3\xb9\xe6^\x0f\xbb\xe1\xf7\xb5\x9dO\x97q}\xcaC\xe1\x13\x1e\x9a\xc8\x85\nO(%\xb3\xdd\x9c\xb1:\xbd\xcb\xc9\xf1]NN\xee\x13\xe3\xc8b\xb1\xe4\xe6[os\xf7\xd6\r\xba\xcd\x86\xb3\xb3\x15g\'\xa7l\xbb\x9ea\xec\x11#d\xc9\x94,4&gt;\x10| \xe7\xcc0\x0el6\x1d\xfdX\xc89+\xcc\xe0\x0c\xc1{\x8c\xb1\xf4}\xc6\xe0\x10\x19\xc9e\xc4{\xcb\xacY`\xac\xc5Z\x87q\xe0\xbd\xa5i\x1a\x16\xb39\xcb\xe5&gt;\xde7 \x19\xdf\xc2\xc1\xc1&gt;/\xbe\xf8\x05~\xeaK?\xcf3/|\x86\x83\x83#\xac\xf3\x17\xb0/\xc3.\x05{\xef\xcb\xf9\xc3\xbe`\xe7G\xf2\xe95,y\x9f\xbf\xc3\xe4\xaa\xa6\xfc\xa4\x14!\xa5\x91\xe3\xbb7x\xf5\xe5\xaf\xf3\xe6k\xaf\xf0\xce;or\xeb\xd6M\xb6\xdb\x9e\x83\xa3+\xcc\xe6\xfbH\xec\xc8\xe3\xc00\x8c\xf4C$\x8e\x91\x98#\xceB\x91\x8cd\xc1\x18\x07\x08\xc382\x8c\x91q,$\xd1\x12\xae\x88\x00\x16\xdfxrJ\x8c}B\xa4\x90\xf3\x88\x11\xc1\xfb\x80\xf3\x9eT\x12\x8b\xf9\x1cc5G\xf2\xde\xd3\xf8\x06\x110\xd6\xe0&lt;,\x16\x81\xf9|\xceb~\xc0\xd5\xabO\xf1\xc5\x9f\xfa\t\xfe\xfc/\xfe\x15\xae\\}\x06k\x9d~Kcv\x15\xe4\x13\\\xd2\x1f\xf6\x85\x03&gt;\x95\xa1\xf0I\xed\xbc\x1a\xd5\xf4O\x11\xc6\xa1\xe3\xc6[\xaf\xf2\xa7_\xfd\xaf\xdcx\xf3\rn\xdf\xba\xc5\x9d;\xf78&gt;&gt;\xa5O\x89m4&lt;}\xbd%m6\xc4\xb1c\x8c\x91\x9c3\xce9f!\x10B\x00\x84~\xe8\x19\x86jPC$f\x01\xe3\xb1VHE\xbd\x16\x92)}A\x8azH)\x11k\n\xde:\x8c\x18\xa4\x14\xe6m\xcb\xac\t8o\xa96I\x8c\x03CL\x84\x10\x98\x19OI\x8e\x92\x85M\xb7\xe5\xf4\xfb\xafr|z\x97&amp;\x04\xbe\xfc\x8b\x7f\x95\x83\xc3\xcb\x15\xffb\xe7\xbd\x1e\x84&amp;\xde\xeb\xfc\xfdp\r\xecShX\xef\xf7x\xb0m"R0\x18\xfa~\xcb[\xaf\x7f\x9b\xaf\xfe\xd1\xef\xf2\xf6\x9borr\xac\x06\xb5\xd9\xf4\xa4\x04R`\xecV\xdcy{\xc0\xe4\x8c\xb5`\xad\xc1;K\xe3\x1c\xcez\x10\x88Y\xc8\x19\xc6(\xc4(\x08\x0e$\x93S"\x9bL\x01\x9cw\xbb\xdc\x0bc\xb0\xc6\x01\x05c,\xc1\x07\x1a\xdf\xaaW\x92B\xe9{\x92\xb5\x84\xa6\xa5\x995H\xf0\xd8\xe0()SJ\xa6\x1b"\xd8\x91v\xe6\xb0\xd6\xb2Zu\xfc\xe9\xd7\xfe\x1bB\xe2\xcf\xfd\xcc_\xe4\xdaS/`m\xa0\xd4\xef\xb9\xfb\xee\xf0\xc0\xdf\x1fw\x8e~X\x8f\x1f!\xc3z\xf0dM\x11\xdc\x18\xcbv{\xc6\x9b\xaf\x7f\x97\x97\xff\xeck\xdcz\xe7&amp;\xf7n\xdf\xe5\xde\xfd\xdb\x9c\x9en\x89\xa3\xc1\xb9\xc0\xb2\xf5\xf8\x023\xebX\xce\xe64\x8dC\x8cP\x00c=\x14\xc3\x10#\x00%\t\x92\rF&lt;\xc6T\x08\xc0&amp;\xa4\x180\x82\x88\x90$Sr\xc2\x18\x8b\xa1\x10\x82\xa3i\x1c\xb3vFc\x03q\x1c)\xd9 xR\x11r\x1a\xd9nFd\xf75,}\x16\xa4O\xd5\xf0-m\xdbb%s\xe3\xc6-\xfa\xe1\x8fX\x9du\xfc\xb9\x9f\xf92\xcf\xbf\xf4c\xcc\xe7\x07\x9a\xdb=Q\xb2\xf5\xc3O\xe4?E\x86\xf5\xa4!Pv\xe1@\xa4p\xfb\xe6[\xbc\xfa\xca\xb7x\xfd{\xafr\xfb\xe6-\x8e\xef\x9dq\xef\xfe\t\xc7\'\x1b\xfa\xedH\xebg\x1c\xceZ\xf6\x17-\x8d\x13\x0e\xf7\x97\xec/\xe7\x88\x14\x86\x14\x19R&amp;\x031\t)\'bR\xcf3\x9b\xcf\xb1\xd6RJ\xa1\x1b"}\x1cq%\x83\x05(\xc41RD0\x02\x8do\x98\xb5\x01\xe7\xd9Ut\xc1;Lc\x11\xec\xae\xa0H\xf5O\x1c\x131A\xcc\x10K!g\xc1\xe2\xc81c\x9d\xc58\xd8\xac\xb6t\x9b\x8e\x93\xb3{\xfc\xccf\xc5\x9f\xfb\xe9\xbfP\xe1\x0bv\xc6\xb5\x0b\x8b\x8f\r\x89?&lt;\xe3\xfa\x94\x18\xd6\x93\x19\xd5\x84R\x03\xa4\x94\xb8\x7f\xff\x16\xdf~\xf9Ox\xe5\xdb\xdf\xe6\xfe\x9d\xfbl7[\xee\xde\xbb\xc7\xf1\xd9\x86a(8\x138X\xcc\xb8~\xb8\xe4\xf2|F\xe3a\x7f\x7f\xc6boN?&amp;\xd6[\xb5\x93\xb1dR}_g,n\xdejUf\r)&amp;\xc6$\x04\x11\x8cm1VH1\x92m\xc1Z\xc1`i\x9b9\xc1\x07\x8a\x8c\xa4Tp\r,\x1630\x86\x143\xce\x19\x0c\x9eR2c\xca\x8c8\xba\x9c\x10\x03Y\n9\x17\x86a \xc5\x881\xe0\x82\x86\xe6q\x1cYo\xb6\xc4Q\xd8\xdf?\xe2\xb3\x9f\xfb\t\x9c\x0b\x8f8/\x9f&gt;\xe3\xfa\x14\x18\xd6\x07+JE\xa0\x94\xcc\xfd\xfbw\xf8\xd6\xcb_\xe7\xe6\xcd\x1b\x18\x0c\xde[\xfa\xed\x19\xfdvM\x1e3\xc1y\xf6\xe6\rW\x0f\xf7\xb8~\xb0\xe0h\xde\xd0\x18\xa1\x9d\xb74m\x83\xb3\x16\x03\xb8\xc1a\x86H\n\x99\xbd\xa5\x05\x13\x10\xe3\xe8cf\x18GR\xce\xe4\xacpB\x13\x02\xb9\xe8s%\x0b\xc1\x05\x8cU\x18\xc1X\x83)\x0e\xc1blC\xd3\xcc\x15\xc2\x10\xa1\x088#X\x84\x99\xf7,\x0f\x16\xec\xb5\x89a\xcc\xac\xc7\x91D!\xa5H\x9f3\xde9\\\x0ex\xafX\xdaf5\xf0\xfdW\xbe\xcf\xd1\xe1\xefstt\x99\xcbW\x9e\xc19\xc7\xc3F\xf3x\xe3\xfa\xe1&lt;&gt;\x05\x86\xf5^\x8fw\xf3\xa4D2g\xa7\xf7y\xe5\xbb\xea\xa5\x1a\xebY\xc5\xc8\xe9\xbd{lWk\x16M\x83\xdb74\x08\x87\xcb\x05O_&gt;\xe0\xfa\xe1\x82\xbd\xc6\x13\\ \xccgj\x04\x8c\x888\x8cm\xb1\xbe\xe0\x05\x96\x08CLt}\xc2\xc4\x02\xc6\xe0\x83g\xff`\xa9-\x9e&lt;\x12SD\x8a&amp;\xd2\x06\x98\xb5\x01c3\xde[\x8a8\xc6\xb1\xd0\xf7\x05S\x06b\x1cq\xc1\xd2\x18\x8bXC\x08\x96y\xd3\xd2\x06\xcf\xb8\x1d\xd9\x98\x0ek\x1cgCf\xd5\xf5\xf4\xe3Hh\x1a\x9a D\x9f\xb1\xce\xd3\xcc,}\xd7\xf3\xedo}\x9b\xcb\xd7\x9e\xe2\x17\xff\xd2_g\xb9w\xa8\x10\x84y\x12\x8f\xf4\xc3\xa9\x12?\x05\x86\xf5(\x86\xe5\xc5\x9f\x9d\x1bU)\x99\xd3\xd3c^\x7f\xed{\xacOOH}\xc7\xdb\xaf\x7f\x8f\x9bo\xdf`s\xb6\x01\x04o-\x07\xb3\x86\xfd\xd0p\xed\xe8\x90kW\xf6\xb9\xb4\xd7\xb2h\x1b\xda\xf9&gt;a\xb1O\xce\t{r\x0fa\x8bm,\x8d\xf1\x84\xb1\xd0\xe7\x88o\x04l\x8f8\x83\x1b\r\xc30(&gt;\x96\x15D\x1d\xe3H\xce\x95\x87\x05\xa480\xa6\xcc\xba3\x94l\xa0X\xbc\x0b\xa4\x94\xb0\xce0w\x16\xe7=\x8du\x04kp\xc6\xd0\x04O\xbb\xe7X\xcc&lt;\xdb~\xc0\x9e\xad\xc9c\xa4\xe4@\x1c3\x9009\xedN\x81H\x01+|\xeb\xcf\xbe\xceg&gt;\xf3\x05^\xfc\xcc\x02\x1f\x9az\xdf}:\xe0\x85\x87\x1f\x9f\x02\xc3z\x9fP(\xe7w\xe5ju\xca\x1b\xaf\xbf\xca\x9b\xaf\xbfF\x1c\x07\xee\xde\xbc\xc7\xe9I\x871\x81\xf9bN\x1c:$\x8e\xec\xb5s\x9e&gt;&lt;\xe4\xe9\xa7\xaeq\xf9\xd2\x1e\x8b\x99\'\x04O\xbb8\xc0\xcf\xf7\xc99"Dl0\x0c\t\xc6b)\xb9\xa3\x14\x10\x03\xadu\x94\xd0P\x8aa\x1c\x0b\xd6\xc1l\x11h\xe6\x96n\x08\x0ccFr!\x8fI\x0b\x80\xa2 \xa93\x9e\xfd\xf9\x1em\xdb"\x14fsO\xc9#\x19\x08\xcb\x96e\xdb\x12\xac\xb0\x08\x9e0s \r3\xe7\xf0@\xeb\x1c\xf7V=\xc7\xeb\x0e0\xb4\xed\x1c0\x0c]"\xf8\xc4\xa1\xf5t]\xcf\xf7^\xfd6W\xae]\xe3\xf0\xe8\x1aT\x8c\xeb\xe2\xa9zt8\xfc\xe4\x8d\xeeS`X\xef\xfd\xa8\xbe\x8a\xd5\xea\x94\xdb7\xdf\xe6\xfe\xbd{\xf4\xdd\x96\xb3\xe3cN\x8e\xef\xd3\x84\x00\xb3\x86\xb1\x0c\x04\xefh\xfd\x82g\xaf^\xe1\xb9\xab\xd7x\xea\xa9k\xec\xed/\t\xc1\xe1\x82\xc763\\\x98\x91\xe3\x80)\x11\xe7,\xbe\x1f\xb0}ft\x161\r6\x16$@L\x99`\r{\x8b\x19\xc3h\x1030\x0c\n\x88\x89dbN\xe4Z\xd1\xc5\xa4H}\xf0\x15`\xed;(Bp\r\xde\x89\xe6\x80\xd6\xd14\x9e\xc6\x8a\xc2\x1e\x8d\xc3\xbb\x96\xd6xf\xc11o\x03M\xf08[8\xd9\x8cPF\xda\x99z\xa6\xe0\x03\xc6X\x86a\xe0\xd5W_\xe6\xea\xf5\xeb|\xe1\x8b3\xf6\xf6\x0f+\x04\xf10%\x9a\x87\x08\x11\x9f\xbcW\xfb!\x19\xd6\xfb\x11\xf3\x1e\x0c\x81}\xb7\xe1\xce\xcd\x1b\x9c\x9c\x9cT\x8aIa\xbd:c\x1c;\xbc3\xd82\xb2\xf0\x86\xfd\xc5\x1e\x87\xed\x82\x17\x9e{\x86kW\xafrppH\xdb4X\xef\xb1\xc1\x83\xf3\x18\xeb\xc8\xce*\x1d\xc5Z\xb0kr\xde\xd0xK\x8c\x82\xb7\x86\xc6e\xbc\x11LI\x98R(i\xa0\xa4L\x1c39fJJ\xe4\x18\x89\xb1P\x8a \xa9`\x8dShb\xec1\x05\xbcu\x0c\xbd!,\x1a\x9c\xf5;2\xa1\xb1\x8e`\x1d\xa1\x9e\xfc\x10\x1c\x8d\x9b\xd14\x8e\x10\x02\xde9\xe0\x84\xd3\xbe\'EK\xd3\x06B\xb0d\xc9\x8cq`\xbd\xdep\xe7\xf6M\x9e}\xf63,\x96{\xbb\xb6\xcf\x93\x19\xcf\'W%~J=\xd6\xb9\xe1\xe5\x1c99&gt;f\xbb\x1d\xb06`\x9d\xa3\xeb{\xb2\x14\xda\xd6\x91\xfa-^2\x87\xcb9\xd7\x0f\x0e\xb9z\xf9\n\xcf&gt;\xfb,{\x07\xfb4&gt;`\x9dU\xc6\xa6uPKuc\x94\x9eR\x8c!\x8ba\x1c3\xbe\x1b\xb01b\x11\xbc-\x04\x0b\x0eaL\x11\xc9\x1a\xfa(`\xd1&lt;\xc9\x19G6\x06L\xc1YA\x8a0\xc6\x88\x88r\xb5\xc4\x19\x8611k\x1b\xc0\x92Ka\x1c"\x0b\xeb\x08M\xc0#\xb8R\x00\xc1z\x87\x0b\x01\xe7g`&lt;1\x0b\xc3\xbdD7\xf4\x84\xa6\xa1\xc8\x82,\x99\x98FJ.t\x9b\x9en\xbb!\xa7\x88m&lt;\x1f\xac\r\xf6\xc9&lt;&gt;\xa5\x86\xa5\x0f\x11\xa1\xef7l\xfb\x8e\xc5\xfe&gt;\xb6w\xdc\xbe\xfd\x0e\x9b\xf5\x9a\xb6\r\xb4n\x8fh`N\xe1\xf2b\xce\xb5\xcbWx\xfa\xb9\x17\xb9t\xe5\n&gt;8\x8c\x01k\x0c\xe4\x02\x13\x04f,X\x83\x0b-^\x0c\xa1\x15\xc2,\xd1\xccFf\xc5`\xed\x08b\x985\x9e\x94[0\x16\x17,\x82 Y\r\x88\x02&amp;x\x9c\x83R\n1\x8d\x0c\xe3\x08YCQ*\x85"\x8aI\xcdcR\xfeV\xf1X\xb1\xb8b\xf0R\xf12\xa3\xfc-\xc1(n\xe6\x0cI`\xcc\x85&gt;en\x9f\xac\x18\xc7D\x1cF\xday`\x1cF\xd6\'+N\xee\x9dpzz\xca\xd5\xeb=\xa1\x99=\xf2\xdc=Q\xc1\xf81&gt;~\x08\x86\xf5d\xfc\xf4R \xa5\xc8z\xbd"\x84\x86a\x8c\xdc?\xbe\xc7z\xb3\xe2\xe8\xe8\x80n}\x9fT\x0cG\x97\x9fb\xcf9.\xef\xcdy\xea\xfaU.]\xb9L;\x9f\xd5b\xb3`\xaa1H*\x80\xc3\x04\x87\xa9|w\xeb\x1c\xa1i\x99\xcf\x97\xa44\xe2\x9c\xa3\x1f\x15\x93\x12c0\xd6\xe1\x9cc\xd3\x17\xca|N)\x10cb\x10\xa1\xe4j`\x16\xbc\xf3$\x97\x10\xc9\x80\xa1\x14\xf4\xcaZ\xc1z\xa5@\x1b#4!0og\x18\xb1P\x0c8S\x07-\xb4\x91\xee\xbc\xc5\x1d\xcc\xf1\xde\x933l\xfa\xc8f\x8c\xa48\x12\x87\x86\x92\r\xabq\xcb\xf7^y\x95\x83\x83\x03.]\xba\xccby\xa0m\xa5\'2\xa2\xff\xbf\x0e\x85\xef\x05/&lt;x\x12b\x1c\x891q\xf3\xe6;\x9c\xdc?\x01cx\xea\xfas\xf4\x9bSn\xf4=\xfbW.qi6\xe7\xb0m\xb9\xb4\xbf\xc7\xd1\xe1\x01m\xab#X\xc6(\xc3@\xd2\x88\x140\xd6"\xa6\xba-)XPz\xb1q\xcc\x9b\x16\x7fx\x89\x8dw\x98\xcd\x96\xedfK\x8e\x85\x9c\x12\x92#P\xb0\xce\xe2}%\xff9pE\xb0\xd6\x12\xf3\xc4v(\xb8\xda\xd46F\xb9Z\xcb\xc5\x92\xf9\xa2%\xb4\x1e\xbc\xc18\xa3ED\xa5\xd1\x18gp\xb6&amp;\xdf\xceb\x9c6\xb7\xc3\xfe\x1c\x8bg\xd5\xafx\xeb\xce}\xd20`X\xe2,P\xa0\xeb\xb7\xbc\xf9\xe6\xf7y\xea\xd9g\xb8|\xf5)\xf6\xf6\x8f\xb4\x19o\x1ejR?\xd2\x8e&gt;\x19\xe3\xfa\x14y\xac\x0b\xbf!B)\x89\xbe\xdf\xb2:;\xe5\xd6;\xef\xe0\\\xe0\xea\xb5k\xcc\xe7-gd\x0e\x96\x07\xa4\xcd\x06\xdf\x16\x0e\x8e\xf69&lt;:\xa2m\x1a\xbd\xb0\xd6\xa1C\t\x82\xb4\x06\xd3hn\xa5)M\x86\x92\xd5\xa1`\xf0\xd6`\x9c\xc5\x88\xa74se*\x14C\xd3\xce\xd9\x0c#\'g\xa7\xac\xeevt\xdb\x8e\x92\xb5\xd9l\xa3!\xf5\xda\xbe\xc9\x02)\tF\x1c\xde\x1a\x9c3\x84\xe0Y,\x96,\xe7K\x1a\xef\xb0F\x90$\xe4\x98\x91R\xc0:\x8c\x15\xfdc\xac\x86\xebJK\xb6\xd6\x10\xda\xc0\xa5p\xc0S\xdbK\x9c\xad7\x9c\xf6\tH\x84v\xc6\xd9i\xcf\x90=w\xee\x1ds\xf3\xc6\r^&lt;\xbe\xc7r\xef\xe01\xe7\xf7qC\xb6\x1f\xff\xe3S\x95c\xedJ\xe5:\xd7W\xb2\x10Sfo\x7f\x9f\xa6\x99\xd1\xb4\x8d\x1e\xb4\x0fH\xca\x8c\x9b\r\xcd\xa5\x03\x96\x8b9\xb3\xc5\x0c\xef\x1cV\xea\t\x9c(\xca\xae&amp;\xb7"X[C\x98\xb3\x98"\xd8R\x94\xad`-\xd69\xda\xb6\xc5Y\x03{\x99v\xd6\xb0\x9fa6o\x89)\x92\xb2a\xdd\x8dP\n\xde44!\x93\xd3@)\x19\x8b\xce\x0c:ch\x9c\xa7\t\x01g\xa0\x8c\x03)Z\xc4Zf\xf3\x86&amp;8\x0c\x05\x8b\xc5\xd9:\x8dc\x04\x1d\xeeQ\x10\xca\xd4?\xcd|\xc6\x95\xa3\xab\x9c\\\xeaH\xc7\xf7Hq \xcb\x82b \x96D\xd7\x8d\xdc\xbf{\xcc\xfd\xbbwx\xfa\xd9\xe75G{\x98\x01\xc2\xc3\xf8\xe9\xfbM\xfd|t\x8fO\xd8\xb0\xde\xcb[\x9d\x87H\x11!\xa7H\xdfw\x0cc\xe4\xe0\xd2\x15\xe6\xed\x0c\x10r\x1c\xb1\xc6b\n\xcc\xe7\x0b\xf6\x0e\x8f\x98\xed\xed\x13\x9a\x19V\x89\xee\xd5\x8eJE\x0c\xadR\x97\x8bf\xd6F\x13\xa0z\xc6\x0b\x1a\xe6\x0c\xdex,\x05+\x8e\xec\r\xc6X\x9a\xd6\xe3\xdc!i\x1c4\xa1\xef\x13\xa7\xab\r"j\xf01h\xe2-\x15\x99\x0c\xd6\xe1\x8d\xc3\x14\x83\xc4\xc2XzL\xf0\xcc\x17\x0b\xf6f-\x8b&amp;\xe0\rx#X\xa3\xaf\xd3\xe0\xac\x83\x19\xc6\xbajl\x06g\x03{\x8b}\xae\x1c\x1d\xb1\xee7\x9c\xc6\x11g=\xcb\xfd\x96n\x18\x01\xc3j\xbd\xe1\xde\xdd;\x0cC\xcfb\xb1\xff.L\xeb\x87\xf9\xf8\x04\r\xebqs\x81\xe6\x11\xcf\nc\x1c9==&amp;\xc7\xc4\xfe\xde!\xf3vF\x8c\x03%FD2\xde\x1bf\x8b\x03\x96\x97.\xd1.\xf6qM\xc0HALBJ\r9F\r\xc8HQ\xc3*\x9a\x0b)\xe5\xa4hro\xce\'x\xb0\x06\xb1\x16\xef\x1c9EH\x85\xb9\x85\xa3e\xc3\xb8\xd70k\x1b\x1a\xaf\xc4\xbf\x94# \x8c\xc6\x90\xc8jX.\xe0\x8d\xc5\xa3F\xe6\xbce1k8\\\xb6\x1c\xcc\x02\x0b\xefh\xac\xd5\\\tArA\xac\xd2\x94E\x04r\xc2\xfa\x80C+\xc6\xe0\x03\xcb\xf9\x9cE;\xe3\xa4\x1b0\x19\x8e\x0e\xf6i\xc3\xc0b\xb6\xc4{\xcf\xd9\xd9\x8a{w\xef0{~\xb9\x1b\x84\xd5\x87y\xf0\xac_\xa0\xdb|\x12\x8f\x1fb(|\xbc\xf7*E\x18\x87\x91\xed\xa6c\xd6\xce\x98\xb5-E\n9e\x8a\x88^T\x1b\x99\xcd[\xe6\x8b\x19a6\xc3:\xa7\x86c-\xc4\x11\xeb\xa4\x0e\x90\x8a\x1aW1\x08\x16+V9\xeb\x92v\xdd"e\xe3\x94\x9d\xd19\xeb\xf1\xc6P\xe2\x80\xc9\x85\x96\xcc\xdc$\xc6\x1cY4\x96\xa3\x83%H\xe1l\xbd\xe2,\'\x92\x01\xb04\xbe\xa1q\x96`ao&gt;g1\x0b\xb4\xde\xd2z\xc3\xdcff\xb6h\xce\x85ze3\x8d\xdc\xef\xe6\x08\x0bd\xa5\xe2X\xabEB\x08\x8e\xb6iq\xc5\xb2\xbd\xbf\xe2`y\xc4\xb2\x99qxp\xc0\xde\xfe\x92\xa1\x1fx\xe3\xf5\xd7\xb8\xfe\xd43\xb4\xed\xe2\xbd\xcf\xb8\xf0\x84\x8d\xeb\x1f\xfc\xf1C4\xac\xc7\x7f9\x11A\n\xcc\xda9&gt;hC7\xa7D\xca5\x9cI\xa1mg,\xe6s\x9a\xd0\xa8Q9\x07\xd6`\x92\x01\'\x18\x1c%g\xd4\x13\x81\r\xa8\x17\x13\x83-\x15\x82(\x1a2u\xc6\xa7\xa8\x17\xa3\x80d\xe5EUlia\x03\x07\xcb\x91\x98\xce\xc8C"ZCn&lt;\xc5[\xa23\x8cbp\xd6\xd16\x1e\x0b8\xc9,\xbce\xcf[Zgh\xbda\xe1\r\xad\x17\x9cU\n\x8e1\x16\xb1\xd4\xcf\xce\x152\xf0`\x05E#2E2\xc6\x18\xda\xa6a\xd6\xb4l\xbb\x9e\xe3\xd33\x8c\xf7d\x81\x9c\n9\t\xfb\xa7gt\xddf\xd7_\xacg\x91s\xda\xe1\'\xff\xf8\x98\r\xeb]j\x1b\xef\xf9\xdb\x17\xc6K\xb1\xce\xe3C\xd0|)\x15\xbc\x0b8\xe7\xd8\x8e[\xc6m\xc7\xc1\xde\x11\xcb\xc5\x1e\xce\xf9\xfaI\xca=\x17+X\x17\x10\x93\xb1u,L\xb051\xce\x88\x18\x8c\x15\x1c3\x8c\xb5\x15RHuLk\xf2bf\x17:\xacu4\xbeeoy\xa0\xac\x06\xb3\xc1\x96\x8c\xcb\x06;:\xf2\xd02\xda\x841\x0e\x9b"\xceXf\xb3F\rI\nsk\x99\x05\xcf\xcc{|U\xa6\x11#\xb8\x1az\x8b1:\x94\xbaK\xe0\xc1x\x0f\xc6\xd5\xea\xd1\xd24\x81\xe5r\xce\xfad\xc5\xb6\xdfb\xda\x86\xed\xc9\xc0\x18\x93\xdex\xe3H\xbf\xddP\x0e.\x9f\xebB&lt;"\xd7\xda\xe5\xef\x9f\x80\xd7\xfaTU\x85:P.Xkhg3\xe6\xcb%g\xc7\xc7\x18k\x08\xd6S2\xe41\x11\xfb\x91\xa6\tx\xd7\xe8k\x8a\x82\x91\x82\xc5\xb8\x00\x16L\x8eJU`J\xe2\r\xe2\x1c\xc68\x8c@q\x83Vh%C\x81b=\xc5\n\xd6%\xac\xcd`G\xcd\xe7b\x87\xf1\rm\x13X4\x81\xd4\x1b\xc4\x81o\x1c\xb3\xfd=fxV\xdb-B\xc1\x1bC\xeb\x03\xed\xac\xa1m&lt;\xad\xb5\xcc\xda\x96\xd0\x18\xac5\x18\xb9p1\x8d\xadM\x00\xb3\x9bv\xb6\xc6`\xad\xc7Y\x87q^[X\xd6\x13|\xc3r\xb9`/&amp;\xb6c\x0fdf\xf3\x05b\n\xfd\xd8\xb1Z\x9fr\xf7\xcem._y\x9a\xa6m\x1f8\xa3\xef!%\xc7\xc7i\\\x1f\xa3a}0o\xf5\xb0\xceB)\xa5\x9eh\xbb{\xceZ\xbb\x03?\xd5\x03Y\x05AK\x86\xe2\xc0\x19m4\xef\xa86F\xf3.\n\x06\x7fNm\x96\xa2\xe1\xa8x5.\xa3\x04\xc2\x1a\x1b1\xdec\xad\xc7\x00%%e\x9aZK\xdb8\x1a\x0b\r\x05c\x1d\xed\xcc3w\x9e\xfd\x99gL#\xdeYfM\xa0\t\xda\xd3tu\xf6\xd0\x1a\xd9a)\x02\x9a\x07bw\xdaZ:\x16\xa9\xb3\x8a;\xb5\x06\x01\xc9:\xc9S(\x18gh\xda\xc0z=\x10\xfbBh[\xb2d\xfa\xa1c\xbd:\xe3\xd6\xcd\x1b\xbc\xf8\xd9/\xd0\xb4\xedc+\xc3\x1d\xf2\xf0\t\xa4Y\x1f\x93a=\xc9\xb0\xe9#\x1eU\x9b\xaa\x94BN\x11g\xf5\xc2\x88\x08\xb9\x14\x9c\xb3\x84\xc6\xd3.f:\\j\xb4\xd3Vj\xd9n\x8c\xd1\xe1\xd0\x02X\x8b\xc1\xd7R\xa8~~\xcePT8\r)\x18\xe7\xb0\x04\x8a\x01\x13\xa5\xcaA\xd6J\xd1\xd6\xa2\x12\xab\x1e\xd1%\r\xa1\xde\xe0\xad\xfe\xd0z\xcf\xaci\x98\xcf\x02C\x1c\xb0\x16\x1a\xefp\xd5p\xc0b\x9c\xd1\xf6\x8d*|h!a/\xaa\xcc\x18\x1d\x13\x9b\n\x89\xea\x815\x1f,H\xd6\n4\x89\x86xg\x83N\x17\xa5L\xb7\xed4M\xf0\x81\x83\xbb\x87t\xdd\x86\xfd\xfd\xc3\x9d\xfe\xd6\x83\xf6uQ\x0f\xe2\xe3O\xdf?}\xa1P\xa4\xb6\'\x04\xeb\xeadr\x11\xb2\xb5X1\xb8\x10\x98-\xf6 v:\x8cPP\xc3\xaa\xf8O}\x9b\xfaGs\x14(\x88\xa4\x9dG"\'\x85\xe1\xa5bG\xaePK;(\xb2K\xe8k\x92E\x11\xb4\x01-\x82sJo\xb1\x08\xbei0\xd6\xe1\xe3H\x08\x16\x8czY\xed\x1ci\x88+\xb0\xc3\xd2\xd4\xb8\xaa\xf1\x8a\xa0\xd9\xbb9\xf7V\xd6\xed\x98\x17p\x9e\'\x95\\G\xd2\xc4aM\xc0\x9aL\x8a\x99\x14{\xc6!b\x9c\xe1\xf2\xd9\x19\xddvK\xc9\xf9\x82\xc8\xdb{\x15H\x1fo\x85\xf81\x19\xd6\x87\xadE\xce\x15\xef\xac\xb5\xc482\x0e\x83^&lt;/\x18k\xf0\xbe\xa1\x99\xef\xd1\x8f\x03\x82\xa3\x00\xb5\x1f\xac\x00)\xb5/X\x8f\xc3TQZ)\xbb\x1f*\x1a_!\x06\x8dP5\xf7\xaa\xf4\x1a\x99\xd0{\xe3\x80\\=\x8c\x832`qx\xe7q\x16\xc2l\x86\xc1b$c\x8b{\x003\x12\xb15w\xaa\xcfNX\x95\x08%\x97\x1a\x06e7\x88j\x9c\xd1\xdf\xa9]\x82\x9a\xc7c\xb1\x98b()\x91R!\xe6D?\x0e\x84V\'\x89\xa2\x14\xc6\xa4@\xed\xa4+\xf1\xf8k\xf2\xb8s\xfe\xd1\x1b\xd7\xa7\xcecM\xdf5\xa7B\x1c3\xde+S\xc1X[G\xd9\x8bV\x8b\xc6\x91\xb2\xea5\x88\x94s\xfd\xab\xda\'\xb4N\x07R)\x05\x8abC\xea\x15\x002bl\r\x97\x06[C-\x92\x91\x1c\x91\x18!\x17,Z\xb5Y\xe7\x14\xa2\xa8\x89\xb5wN\x9b\xce\x12\xc1:B0\x98l)9Q\xa4h\x15Z\xbf\x8d\x15E\xd61\xa2\xbdK5E\xc4\x18\n\x06k]\xfd\xbbEL-6J\xbe\x00\x83h~\x19\xc7\x91\xae\xef\x89\xa9\xe0\x9c\xa3q-&gt;x\xb2$J.\\\xb9|\x99\xc3\xc3K8\xef/\x00\xa1\xefc4\x1fcL\xfc\x84r\xac\'y\x9c\xe3/"J\r\xee\x87Q\'e\xac\x85\\\x889\x03\x10\xda9\xf3\xfd#\xbc\x11b\xd71\x1aCp\r\x12\xea\xfb\xecX\x95\xd5\xe0\x8c\xada\xd1Q$!\xb9h\xc5\x87\xc1L\xf8\x97\xa9!I\xf4\xc2\x96\x9cj\xd2\xac\x93\xceB\xc45\x06\x9f&lt;%\xab\xde\x821\xda*2\xb9`\nX\xd1\xe4{r\x8eVD\rF&amp;C\xa9\xe1m\x17\xaa\xcf\xd5\x98\x8dT-,\xa3:\x0f\xd6\xd8\x1a\xa6m\xf5v(\xc0K\xc1\x87\x86v\xd6\xd2\xb6\x81,\xa9\x8a\x8d\x04\xbcw\x1fh\x04\xec\xe3\xcc\xb5&gt;U\x1ek\xeau\t\xca{\xea\x86\x91\xe5b\x813\x96\xbe\xdb\x12\xe3H3\x0b\xb4aF3\x9f\x11W\xa7\x903\x8d\xf7\xe4\x92w\xbd\xb7\x9d\x90\x86EO\x9d\xd1\xf6\x8e\x18\x81\x98\xeb\x05\xd4\x8aQJm\xfe\xfa\x80\r\r\xae\xce-\x9a4 1c\xadWj\xf2\xd8#\xd6\xe1\xbc\xc7\x05_\xdbF\x06\x8c\xdf\xd1]\x8a\xd5v\x0f\xa2\xca~\xaa\xdf0}\'\xcb\xa4\x0f/R=\x14\xc2.k\xaf\xc6-\xc6T\xb8V\x87\\\x9d\xf5x\xefT\x02\t\x8fq\x911\x0bC\x1c0NX.f\\\xbfz\x8d\xe5|\xa1=\xd1\xdd\x18\xfe\x871\xa3\x8f\x8e\x1b\xff)1\xac\x07\xbf\xb4\x96\xf7\x8e\x83\xbd\x03B\xe3\xc8Q\x15\x8c\x87~K\xca\x0eJ\x82\x94\x89\xc3H\xce\x89v\xdeRJM\xb8wX\x91\xde\xfd\xc6\x08b+\x02m\\\xc5\x8f\x9c\xe6\xd3)#9\x01\x06I\x19#\xb6\x92L\x95y`JV\x07\x16\x07r\x1cj\xd8U\xcf\xa6\xe9q\x06\xe3\xb0m\x83\xc9\xa2\xc9^\x16\xa4\x18\x8c\\@\xfd\x8d\xad!M\xc9\x86R\xa5!\xf5\x88+\xbcP\xd1KA\x8f7\x97\xa4\xe0h;c1_\xb0\x18\x06F\x19Hx\xfdY5X\xef&lt;\x88pvvJ\xdfm98\xbc\x0c\xf6\x03\x0c\xb0~L\x80\xe9\xa7&amp;y\x97ZzOj\xc6&gt;x\xe6\xf3\x96\\\x12\x18Q\xee\xbas\xa4q\xe4x\xb3\xc6\x94\xccpv\xc6\xde|\xc6"-(9\xe9\x85\r\x9cW`\xd4+6\t\xb3Y\xa9\t:;H\x81TK\xfb\x82\xa2\xe7\xd6Q|\xc0\x85@v=9\x8d\xda,\xcePb\xac\x9eH\xcdA\x91r\xad`q\x86"`\xc4b\'q\xa5\x92\xf5(4\xceap\xbb\xb0\xbc\xdbnqA\xb0O\xbd\x8dU\x03\xcf\x05\xeb&lt;\xb3\xf9\x82\xfd\x9c\xd8\x0e=\xeb\xbe\xc7P\xf0\xc1\x03\x06\x93!\xc5\xccj\xbb\xe1\xf8\xf4\x841\x8ej\x98\xbbS\x7f\xd1X\x1e\x8fm=\xd4\xae\xfeH\x1e\x1f\xa3\xc7\xfa \xc6U/\xbe\x91\x1d\xdd\xc5XHi$\xe7\x02@h\x1a\xe5\xc0o3\xeb\xcd\x96&lt;vt\'\xc7\xcc\xfc\xf5J\x8b\xa9\xbd\xb1)W\xaa\xef+\x15\x10\xd5\x06s\x9d\xcc1\xb6\x02\xa9`L\xa1\xe4\x825Y#\x12\x05\'\x82kZ\\\xdb\xab\xa6h\xf6\x902\x98\x04%"E\xeb=k]5\\\xf5N:\xc4*8e\x11\xee\xe8\xcbz(\x13\xb65\x89\xc5\xa9\xa7\x92\t\x1a\xd8\xf1\xb1\xbc\x1a\xa0v|\xb0\xb3\x061\xfbt}\xc7\xf1\xd9\x19\x92\x07\\h\x11\xb1\xe4\xa4\x03\x1a\xbe\xf5d\xa3\x05\xc8\x87\xd1\xd1;\x17\x17\xf9\xe8\xbc\xd6\xc7\x1c\n/6D\x9f\xe07\xe5\\\xf3\xaa\xa4D\x8c\xb5\x877iP\xd5\x9f[gI\xa5\xb0\x9c/Y\xcc\xe6*\x1d\xd4\xccp\xde3e\xc62\x01\x9dR\x03\x8chu\x88\xb5\xe0\xdb\x9a;\'\xc4\x15L\xca@\xac(}M\xa6\xad\xc363\x1d\x80`\xa0\xe4LN\x0eS\nf\x9a\x9a\xc0b\xad\xd7\x9c\xad\xe8w\xb4F(&amp;\x81\x18\x8cqh&gt;\xaf\xa0m\x11m\x0bg\xa9\xcc\xd3";&gt;\xbcu\x0e\xeb\x1d\xd6\xa8p\xdb\x94sY\xefhL\xcbb&gt;g\xde4HY\x91S\xc2\x86\x16k\r\xd6\x19\xda\x99Rz\xe2\xa0\xc7i\xc2\xfb\x9e\xeeG&gt;&gt;J&gt;\xd7\'\xd0\xd2\x99*\x9f\xf71.3]P\xbd\xab\x87qT.9\x16\xef]\x15\x9f\x1du"f\xe8\x89]\xcf\xb3\xd7\xaes\xed\xa9\xe78\xbaz\x85\xd9ry\xceu\xaf\xd5\xd6\xe4\xad$\'\xad\xf4\xca\xce}`lC\xb1\x06\x91\x84\xf1\xea\xc5\x0c\x82\xcd\x85\\zE\xcb\x8b\xf2\xe6\x8dQ\xfa\xb2HV\xc6D\xd1\xa9\x9fB\x01[0&gt;\xa8\x8eVR\x8cJ\x8a\xa9s\x84\xb2\x931\x12T\x1cD\x80L!\x8aeL\x89\x18Gr\x8cXk\x99\xef\xed\xd3\x16G3\xb3X\xa3\x05\x02\xd9\xe10\xcc\xda\x96y\xdb\xeap\xc7\xd0\xe3Jf\xbe\x98\xe1\x9a\xa0a&lt;[\x9d{\xcc\x89\x1f\xac\xde\xfbh\xf2\xad\x8f9\x14^&lt;\xd8\'\xf9B\xfa\x18\xc7\x91\xb3\x93SJ)\xf8eS\x01IK?l\xb8{\xf7\x06\x9b\xe3\xfb,*\xddwyp\xc0l\xbe\x87s\x8e\xf3\xb4\xfd\xbc=\xa3\xd5[\xd6D\xbd\xe4\x1d6d\xb2\x12\xedJV\xba\x8c\x12\x03\x1db\x03b\x83r\xc2\xba-\xa9\xdfb\x9b\xba#\xc78\xb2\x8c\xd5\x9b\xa0\x90D.8\xa7\xb9a\xc9\xb1\xee\xd8\x81\\2\xa5\x08YTNRj\xfb)c\x18EXu\x1b\xbaqd\xbd\xdd2t#\x8d\x0b\\\x1e\x0b\x87\x97\x0c\xaemq\xd6#\x95\xa4h\xad\xd5)\xea\xe0i\xac\x87&lt;\x92$\x11]d\xb0\x0eo{J)\xcc\xe6\xf3\xea\xb5?\xfc\xe3\xa3R\xad\xf9\x84\x9a\xd0O\xfa0\xf5"\x83w\x01\x13,\xde\xa9N\x14\xc6\xe0\\C\x1a\x0bi\xc8\xec?s\x9d\xbd\xc3K\xb4\xf3\x19\xd6\xdb\x1djmL\xa9ew\rW\x060\x96\x94\x0b\xa9\xef+\xad\xc6c\xa5\x1a\xc3\xe4\xd1Di\xcfq\xd80vk\xfa\xcd\x9aa\xb3&amp;\xc5\x81\xe0\x1c\xce\xba\x9d\xa1Z\x1f\x14\x13\x1b\x06\xa4\x18l\x98#9\xe9"\'\x041\x8eT`\xe8\x06\xc6\x92\x19rb\x88\x03c\xce\x8cb\xe8Sa\xdd\r\x0c)\xd3\x8f#N`\xd9\x08n\xb3\xa1X\x85&gt;\x0e\xdb\x05\xbe\t;\x12\xa2w\x96\x99\xd7\x8eA\xf0\x01\xe3UZ\x12\x11\xacA\x8b\x8c\xa2\xde\xea|\x19\x81\x9e\xd3\x0fn\\?xH\xfc\x94\xc0\r\xd3\x17\xd2\x13\xd1\xccZ\x0e.\x1d1V\x80t,\xa5\xea$\x14\x8cq\xec\x1f]\xe6\xf2\xd5\xa7X,\xf6\xf0\xce\xa81\xa1\xaf\x95\x92k\xf9\xac\x7fr.\x0c\xdb\r\xeb\xe3c\xfa\xf5\n\x91D\xbb\xd05%9\r\xc4a\xabs{}\x87\x8c\x91\xdco\x89\xdd\x86\xd8oIC\x87!#\xde\xe3\x9d#%\x15\xc35\xbe\xc1\xd9\x00E\xa1\x10?\xb7H\xad\xd0\xc6\x9cH\xc0\x103\xfd\x18\xd9\x0e\x91\xbb\xab5\xc7\xeb5}J\x14\xa7\x9d\x81\x14\xf5;\t\x99y\xe3)\x08cJl\xb6[\xac?\xa1Y\xec\xb17\xbf\xacC\xad)\xe1\x8cc\xd6\xb4xS{\x08\xd6\xd6V\x95\xe0\x1d\xf4\xdb5]\xb7\xa5\xd4\\\xefAHj\noO\x8eS\x9dKq~8\x03\xfb\x18\x0c\xeb\x83z\xaa\x0b\x14\x97\n94\xa1a&gt;\x9f3\xf4=1&amp;\xc6q\xa0\xdbn8;9f\x1c{\xae\\\xbe\xc2|6\xc7\xedN\xd6\xd4\x19d\x87pS\xa9\xccC\xbfesv\xca\xea\xf4\x98\xb3\xfb\xf7\xd8\x9c\xdd\xc7\x06\x87\x0b-i\xe8\x19\xbb\r9G\xe2vKI\x11\x93Fm\x1dWv\xc1,x\x8a\x14\x82\x0f\x9a\x0f\x95\x8c3F\xfb\x8d6\x10\xbb\x11;\x8cHJ\x0ccb3\xf6\xd5\xb8,}\x12\x8e\xbb\x81\x9b\'+\xee\xaf\xd6$\x84\xd0\x04\x16mK[U\xfb\x94\x11\x11Tc\xc2\x05R\x11\xb6\x9b-\xeb\xd5\x8a\xd9\xde\x12\xdb\xb4;l$\xf8\xc0,xl\xd7+A\xd1LRJI7\x92\xadO\xe8\xd7\xc7\x04gq\xbe\xe5\xf1\xb9\xed\x93\xe7Q\x1f\xd6\xc0&gt;2\xc3:?\x80\x1f\xf8\x9d\x14\r\xb0\xa6\xf6\xc7:\xd6\xeb\x15\xdb\xd5\x19\x9b\xd5\x19%e\x82\xf75,\tF&amp;\t4\xb331\xa9\xe1-\xf6\x1d\xdd\xd9)\xdd\xfa\x8c\xbe\xdbpvz\x97\xe3;\xb7\xd9\xf6\x1d\xfd\x18\xe9\xbb\x9e4\x0cub:cJ\xc1Q\x98\xcd4\xa7\xf3\xd6\xb0?o!\x8e\x84\xd0(7\xcb\x19\n\x85L&amp;#\xc4\x9c)\xdd\x1a\x10\xfa\xa4\x1e\xaa\x8b#\xd9Z\xbadX\xf5\x1dC\xec\xc1d\x1agY\xce\x0cG\x0b\xcf\xfe|F\xdb\x06\xac\xf1`=\x98@\xc1\x92\x92be}\xb7e\xe86xg\x95\x19k\x04\xef\x1c{\xb3\x86\xdbg\x85\x18\x0bXE\xef7\xdd\xc0A\xcc\x1c\xdfx\x93\xb7\xca\xc0\xa5\xab\xcfr\xf0\xd4\xf3,/]\xc1\xf9\xf0\xc4F\xf4~\xd7\xf7\x83\x18\xd7GbX\x17\xb1\x93\x0f\x9e\xfc\x9dC\x12\x13\x04e\x8c%4\x01g5\xb4\xf5\x9b5\xe3\xd01\x9b\xcd\x98\xcf\xe7U\xbdE\xbd\x86q\xa1\x02\x8efw\x00"\x85\x94\x13\xe3\xd0\xd3o6t\xab\x15\xdd\xea\x94\xb1\xdf2[.\x89\xb9pz\xba\xe6\xf4\xf4\x94\xbe\xeb(\xa9\xe0q\x04g\x98\x05\xcb\x983\xce\x08\x8b\xc63sVG\xeacV&amp;\xabot\xb5\\\xbf&amp;\xa6\x91l\x8a\xa2\xf2\x06\xc6T\x18c\xa1\x1b\x12\x9b8\xd2\xc5B\x1f#\xc6B\x1b,!\x18\xf6g\x96\xfd\x19\xccB\xc1\xbb\x82\xf3\x86\xd04\xb8fN1\x81\x94\x0by\x181\x08e\x1cu\xb86x\x8a\x11\xbc7\xec\xcd\xe78k\xc9i\xc4\xba\x80\xb1\x86\x9c\nf\xc8\xdc\xfd\xee\xf7Y}\xfd\x1b\xec\x1f\x1e\xf0\xc2\x97\xbe\xccK?\xff\x17\xd9\xbb\xfa\x0cS$x\xf79\xff\xf8\x8c\xeb\x076\xacG\x01rS\xce\xfc\xc1\xbe\x83\x99\xdcMm\x99\x18BpH\xc94M\x003\xa7\xdf\xf6\xaa\xc6\xe7\r1\x8f\x94\x0bn\xbe\xc2\x8e\x15\xaf*\xa4q$\x8e#\xb9\x14\xac\r\xec\x1d^f\xef\xe8\x08k\r\xc3\xfa\x8c\xe3\xdb7\xb9{\xfb\x06\'\'\xf7\xd9lz\xfam\x0fIg\x0cs\xa9\xed\x98\xa2\x0cU}\x0f\x985s\x9av\x81\xb5\x90zE\xe5\x91D.\x861\x17\xbaad\xdb\r\xac6\x1d\xa7\xfd\x96&gt;\'\xc611\xa4\xa2\x10C\xe5\x8e\xf5c\xaa\xca~\x81\xc5|\xc1\xfe^bi\x85\xc5r\x9f\xb6\xddG\xb2h\xa1\x91\x12i\x1c\x15\xcbChf3\x0e\x8e\x0eY\xde?\xa6\xf7\x16\xdf\xb4\xccC\xc3\x02C\xd3u8\x036\x15\xc6\xe3S\xee\x7f\xef\x15\x0e\xae\\cq\xe9Z\xd5,5\x1f\xe4b\xbc\xef\xf5~?\x03\xfb\xd0\x86\xf5~\x08\xef\x87kg\n\x12{\xe2\xfa\x8c\xee\xf4\x84|\xe7\x1e\xe9lM\xc9\x19\xc90\x0e#)\x0fX\xbb\x0f(}\xe4bK\xa4R\x00\x14C\x8a*?\xd4\xce\xe6\xb4\x8b=\xac3\x18\x19\x89\xdb\x13\\*\xc4EaX\x18\x86\xad\xa5\xdf\x162\x89T\x121\x1a\x9a\xe0\xea\xf0\x83\xa1\xa4Bi\x0c\xae\t\xb4{{\xb4\xb3=$f\xb2\xc9`"b\x84T\x84.\x8e\x1c\xaf7\xdc\xbe\xb7\xe6\xf4l\xcbHb(\x89U72*\xad~\xa7+_\x80\x98\x12m\x08\xec\xcdZ\x8e\x96s\x9e\xbe\xbc\xcf\xf3OG\xae]s\xcc\xe7\xfb$3\xab\xfa\x13\x99\x92#\xd6:\xfcl\xc6b\xb9\xc7r\xbed\x93\xc1\x19\xcf\xb28\x0eD\xd8\x13\x90\xed\x96\xd5\xc9\x19\xe4H\xeaz\x16\xfb\x87\x1c\xbd\xf0Y\xf6\xaf?]?\xd5|d\x00\xe8\xfby\xaf\x0feX\x1f\xa8m\xf0\x01\xf0\xb6\x92FJ\xb7\x85\xed\x16?f\x96\xb6a\x83c\xcc\x89\x820o\x1b\xc6X\xd8\x9e\xadh\x97{\x98\xdd\x00j\xd5x\xach\xbb\xe4\x8c5\x86\xd9r\x0f[\xf9I\xb1;\xe1\xde\x8d7x\xe7\xb5\xd7x\xf3\xcd\xb78&gt;[q\xef\xe4\x8c{\xf7\xcf8\xdb\x0c\xf4\xc3\xa8XPp\x1c\xce\x03W\x16\r\xa9mX\x1b\x87\xdf8\xae^\xbb\xc4\xe13\xcf2?\xbcB\x19\x12\xa5\x14\x86\xd8\x91%1Fa\xd3\'\xee\xae:n\x9d\xac\xe9\xba\x01q\xd0\xe5\xc8\xa6\x8f\xe0Z\xe5~yK\x12\xe1\xe4\xacc\xbeX\xb0\\\xec\xd3.\xf7\xd8t[\xbe\xf7\xfa}\xb6\xeb\x11)\x85g\x9fuZ\xb5\x96L\x8e\x1b\x9c\xcb\xb8v\x0fk\xad\xaeJ\xf1\r\x81\x1e_\x0c\xfb\xc1s)xf\x8d\xa3\x8c\x031\x17\xc6\xf5H\xean0\x9f\xff\x19\xd7?\xffE\x96\x97\xae`C\xf3\x91sd.\xda\xc1\xc3F\xf6\x81\r\xeb\x83\xf6\xa2*\xa4\xf2\xbey\x97H\x81\x9c\xb4*\xcbI\xf3\x89\xc3\x03\x92s\x94\xb3cV\xfd\x06;\xf3X\xd3\xb0&gt;9\xa1I\x89\x1c\x87\xf3\x01\x88)\x92\xd6\x9e\x9dog\xaa\xe4g\x0c\xdb{o\xf3\xe67\xfe\x98o~\xeb\xdb\xdc:Mt\xd2\xb2\x8d\x8e\xdb\xab\x8e\x9b\xf7O\xd8\xf6\x89\xc5lN\xd3\xce\xb1\xce\xb3\xde\xf6\xe4~\xc3\xb0\x18h\x9d\xd7\xa6\xb2kx\xfa3\x8e\xf9\xa5k\xaa\xcf\xd0xJ\xea\x18\x86-\x0c\x91~\x18\xe9\xfa\xc4\x90\x0bc\x85\x01\x861#b9\xda_\x82s\xf4%BI\xcc\x97\r\xcb\xe5\x8cKG\x87\\]\x1c\x90\x9dg\xd8Z\x0c\x81\xd3\xe3-\x8b\xe6&gt;\xcb\xa5\x86\\\x1f&lt;\xc5{Lk\xaa\xecR xG\xe3,\x8du\xcc\x83\xa3\r`\xc8\xd8\xc6\xa9r\xa1\xb5\x0c\xfd\x96\xd3\x1b\xefp\xfc\xda+&lt;\xf5\xd3_\xa6m\xda\x8f\x95\xe8\xfe\xb0\x07{b\xc3\xfaH\x96\x84\xbd\x1f\xa1qsJ\xf7\xda+tw\xefb\x96\x87,\x9ez\x8e\xfd\x83=b\x19\x18\x86\x15\xe3\xd0\x93\xc6\xc8\xd0ulR$\xc7\xf1\xc1\xb73\x06\x83\xc3zAL\x01\x89tg\'\xdc~\xed;\xbc\xf9\xca\xf79=\xcd8w\xc4\xf5\xa7\x9e\xe3\xee\xc9[\x9c\x9c\xdd\xa5\x9d{\x8c\xb3\x1c,\x97\\\xda;\xa25\x8e{7o\xb3Zo\x91\x929\xdaw,\x9a\x96b\x1aRv\xf80c\xb1X\xc2\xd0\xd1\x9d.\xe96g\xf4]BRQ(\xc2\xab\n\xf30\x8c\x90\x0b\xad\xf5\x1c\xcc\x02\xae\xf5lFa;f\x16{-!8\x0e=\x1cX\xa1=\\b//T\xe0-\x8e\xacNV\x9480\x9f\xcd\xb0\x8b\xf9D\xec\xc7\x18\x87o\x1b|\x13hC`\xee\x1c\xad\x15$\x0e\xe0\x1c\xa1m\xf0\xd6\xe2\x9c!c\xe8\xd7\x1bN\xdfy\x8bq\xb3\xa2Y\xee\xefxj\x9f\x84q=\x91a}\x14F\xb5K\xe8\x1fi\\\x82\x11!\xdf}\x87\xb3\xaf\xfd\x01\xc7o\xdeb\xfe\xc5/\x11\xf6.\xd3\xec\xef1w\x9e\x99\x18\xce6\x1d\x9b\xf5\x9a\x14#\xe2\xacB\x0ejQ;^\x91P(\xa9#\xae\xef1l\xce8\xbbs\x8b\x93;w\x99\x1f\xbd\xc0\x97&gt;\xfb\x0c\x06\x878\xc7+\xe9\x94n\xb9\xc4^:d\x8c\x19+\rG\xad\xc7fam \x8aA\x8a!\x84\x86\xeb\xd7\xafqx\xf9\x1a\xed|\x0e\xa5 )a\x8d\xa1i[\xda\xd0\x12\xec\x88\xb7\x0e\xe7\x0cm\xebh\xf0\x98,\x98Y\xa1\t\x8e\xd6d\xe6\xde\xb3\x0c\rC\xa3\xb4\x98`\x03\xfb\xce\xb0\xe7"\xcb\xe5\x82v\xde\x82\x11\xc6\x1e(\xa3\xd2\xb0E7\xb7*g\'a\xadQi\xefY\xcb|\xd6\xb20\xd0\x92\xa1\x1fqm\x8b\x17\x85K\xac\x08Y\x0ci\xc8l\xef\xdf\xa5;\xb9\xcf\xf2\xcau\xa6\xee\xf4\xc7)\x1c2\x19\xd7\xfb\x1a\xd6\'\xb2\xceP\x80\x92\xc9\xf7\xef\x92\x8f\x8fq60?\xbaJ\x98\xcdu\xe4K\n\xfb\xed\x9cMh9\x8e\'\x18\x81\xe5\xdeAUl\xc9;.\x17\x92\x91aM&lt;\xbd\xc5\xea\xd6k\xac\xee\xdf&amp;\xd1r\xe9\x99\x17y\xfe\xcas\xcc\xf6\x8e\xc81s\xf7\xedwx\xfe\xda\xd3\x98\xbe\xe3\x0e\r\xeb\xf5\x19%\x15l\xd71\xf4\x1d3_\x98\x1d-h\x83g\xafm98\xdc\xe7\xca\xb5K\x1c\x1c\x1e\x10\x82*\xfeY\xef\xf0\xa1\xc1\xfb@h&lt;\xf3E\xcb\xb2\x9b\x11\xeb&amp;\n\x7f\xb0\xc0\x98\x05\xc1\x88\x16\x03\xc1\xd1\xb6\x9e\xe0U?\xa2\rs\x9c\xd3\xd7\xfa\xe01^\xc3\xf8r\x19p\xce\xd2\x84\x86v\xd6\xa8\xe2\x8d7\xaa\x0eh-6g\x16m\xcb0ki\xf2\x88/`}\xc0\n\xd8R\xf9\xf4\x95\xc3\x1fKf\xec:\xc6\xcd\x8aR2*\xa9\xfb\t\\N\x91\xf76\xac\x8f\xcd\xa8v\xee\xeb"w\xaaP\xc6\x04Q\xb0"\x98\xac\x08\xb8q\x0e\x1fZ-\xcdgs.\x1d\x1e\xb1MY\xa7\x85w7\xde\xf9\xfb\x19\xeb\xb1&gt;\x10\x9a%\x8b\x83\xab\x98fN\xbb\x7f\x85\xb0h\xc1\x15\\\x08\\}\xee\x1a\xed\\\xd8_\x14\xae,\n\xf7o\x1aVg\x1b\xba~\xc0d\x95\x10r\xd6\xd2\x06O\x1b\x1arT\x1d\x89\xe5bIhT\x1a\xdbX\x8fs-.48kX6\x8e\xc3Y\xa0\xefz\xce\xbaA\xb5\xdd\xeb\xfc`\x89B1\x05\xeb\x0b\xb3\xa6\xa5i\x0c&gt;Xl\xa3\x9b\xee\x95\xdf\xae\xedq\xeft064\x01\xef\x94\xd9\xe1\xaa\x1cw\xc9\xea\xc5\xe6\xb39k\xbbf8\xed0iT\x10\xb7&gt;\xf44T-\x8aR0\xc9V\x8e\xd7\'+o\xf4X\xc3\xfaX\x8c\xeaQ\xe0\xd6d`\xd6*\x8a\x9e2l;\xd2\xfd\xdb\x94\xee\x05\xec\xe1!\xed\xd1eJ\xd3\xe0\xf7\x0f9\x18:\xee\x1e\xdfgs\xf7\xb6\x02\x83u\xb2T\x81U\x8f\t3\\\xbbd~t\x95foI\x8e#y\\\xe9\x06\xd5\xc5\x01\xd67X3\xd2\xf8\xc8\xb2\xc9\x0cm!\xb6\x85\xd2(\x03\x82\xc6\x10+~\xe5l\xa1\xdd[p\xe5\xe9g\xb9tEC\xa1\xf3\x01S\x95\x91\x8dqj\x88\xc6\xd3:\xcf\xa5\xf9L7x\x19\xc3\x90\x95n\xe3\xc5\x10\xac\n\x83x\xc0\xe4\xa4\xaf\xf1\t\xcb$&gt;\xa2\x03#\xd6\xd7\xb1\xb2\xd6\xab,\xa5q8\xe3U\xd8\xad(\x17\x1fc\xd8\xdb[p\xef\x06\xdc\xbfu\x17\xbbYa\x9e\xba\xcc\xfe\xfe\x1e^\x94\x1dkk\x9e\xe5\x8d%\xf89\xcdb\xaf\xaa\x1c\xfe\x90\r\xeb\xe3\xf2T\x0fl\x07\xbdhT"`\x02v\xae\xbd1\xe9\x8e\x89\xf7\xef\x91NO\xe0\xfa3\xf8Y\xcb\xd2\xc1|\xd1\xd2\x0c3\xb6qd}\xe7\x0e\xc67`\xa7\xbb\xb1\xca\x15\x19\x8bk\x97\x15v\xd8#\xf5\x1d\xc3\xfa\x8c\xb8]\x91\x86\x01\xdb,H)\xd1\x9f\xde\'n\xd6\x004\x8b\x05\x8b\x02\xb6iXf\xc8Y\xc5A\xe6\xfb\x87\\\x7f\xe1\xb3&lt;\xfb\xfcg8&lt;\xbc\xc4b\xef\x08\x1f\x1aJ\x1c\x00\xa3\xa4\xbfTp\xe2\t~\xce\xdeBy]m\xd30d!_ \xff5Ah\xbc!8\xad\xf4\xbc\xf7\xf8F\x873\xbc7\x04\xaf\xba\\\xc6\xf8J\xfa\xb3;\xd2\x9f)\x05\xb7\x9b\xe81\n9\x04\x8f)\x85\xedv\xcd\xea\xcc\xd14\x96ffTK\xa4J\x897m\xc3\xec\xcaUfG\x97\xb1\xde\x7f\x14\xfd\xb6\x0foX\x1f_N\xf5&gt;#\xde\xc6\xe0\xaf]\xa</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45489</v>
+        <v>45492.6721875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>791416</v>
+        <v>793051</v>
       </c>
       <c r="B16" t="n">
-        <v>1984</v>
+        <v>1962</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cláudio Tencati</t>
+          <t>Thiago Carpini</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\x9czTXtRaw profile type xmp\x00\x00H\x89\x95VY\xb2\xa30\x0c\xfc\xd7)\xde\x11l\xc9\x92\xe08\x14\xcb\xdfT\xcd\xe7\x1c\xff\xb5\x0c\t\x04\x080\xa1b6-\xadv\xcb\x86\xfe\xfd\xf9K?\xf8e.\x99\xa4\xf7F:ol\xf0d\x83\xa9\x17\xcb\x9c\xe2\xdez\x1b]\xe2\x9d\x0c\xec\x96\xad\xd8dl*\xdd\xfc\xfcm=\xb1\xcbH\xa9\xe3\xf4y 4\xc3\xc9\xa4S.\xa5\xd8.\xec\xfc.B7^p$\xe9\x10j"\xaf?\x1e\x1dV&lt;\xda\x04C\xe7I\xb2\xb4q\xe0*\tcd\x8c\xc3\x1c\x04g\xf1\x16a\x81\xc6\x1b\x1e"\x01\x0b\x05\xac\xd4]\xe1\x02(u1\xc1}\xeb\t\xee-J\x1c\x81sy\x8f\xa2\xd9\x80\x08u\x06P\xf6c\xb0mIp\x92cA\x08\xac\x08\xd8\xf3H\xafb\xc2\x10\xa3\xc2Q\x83\xc6\x80\x0e\xc8(\x92GY\x08=\xc3]\x13t^\x08pK8\x9f\x9b\xbd\xcb\xcb\xd6\x03\xf9\x85\r\x01to\xed\xab\x8cz\x97m4\x8f2*\x95`\xc8\x0c\xb4j\x84\n\\E\xab\r\xd7Z2\\\x1c\x7fAi\x9c\xc2\x18\xa3\xe1\x15\xb4\x82\x82\x12\x0f\xc8\xc5\xa2\xd2\xf3\xf4&amp;\x15\t\xcf1\x85\r\xddC\x9f\xf9\x0b\x1e\xaeh\xa0m\xce\xf3\x89~&amp;\x0f\xba\xd3\xc7SyP\xc9U\x17\x08f|\xd4IU\xedh\x1b\x9b\x08\xbc\xa4\x1cMp\x1e`\x85&gt;\xa4\xb7V\xd2w\xad|$\x0b&gt;\xa1\xb0\xbd%\xed\xdaTPo\xbe\xd6\xd4"\x97\xe5\x0ekFF\xdd\xe0H\xb588\xc2\\\xa00\xe5J\xf7T\x85\x8f\xa0\x0f1JL\xbf\x06\x03\x181\xf9PN\xa8\xa7\xf0\x80\xb3`\xc4u\xcc\xea\xd1m\xeb5\'\xa2\xcbL\xea\xa0\xbe\xb4s\x12\xcb\x08\x9b#\x05\xae\x1c\x9a\xcf(\xcdE\x91\xb0\x80l8\xa4\xfa\xb0HS\x1ff\x88/&amp;&gt;\xd0e\xe4T\x81\xf2\xb16\x1d\x91m\xd2\xa4\x8en\xeb\xc7J\xb6`\xd2\xda4\x0c\xc5*\x02\xcf\xf8\x1cW\n\x08\xb3\xb2\xbf\xb9\xde\xd3\xac\xd1\x9b\x8aii\xe8=gA\xf5!\xe8j\xb8\xda\x9d\xf7#=\xeb\xed{\x95\xd1\xa1\xb0S\xdd\xeeC\x1e\xdb\x9b\x9e\xf7\xf7u{\xd3\xf3\xfe\xf6t\xbe\xa3\xcd\x8dM\xeb\x0e\xbav\xf3\xec\xb24\xb3|o\xe6%4\xe8p%\x00mb\xf5\xc5Z\xdc\xd9\x14\xabo,\xbe\xa5\xf5\xceq_y\xd9\x98\xaf\xd6\xfb\xc0tG\xe2S\x0e\xe9~\x0f}\xc6!\xbd\xbeD\xbe\xaf\x8e\'\x1c6\xe8\xfd\xf4\xb9 \x9e\x7f\x8d\xcc\xa1\xb7\x0b\x06\x8a\x0f\x95\xe3\xe8\xc1\xa6\xc4\xde\xe7\xd8\xed*-\xd5\x9a\xbe\x9b\xff\x9f$i\xa5s\xefv\xd3.\xf5\xdbi\xf5\xa3\x9d\xd9\xe1\xeb\r\xd5\xff\x02\xc2;;\xf2^\xbe\x97\xd2\x00\x00v\xf5IDATx\xda\xdc\xfdy\xb3e\xe7u\xde\t\xfe\xdei\xef3\xdc)G\xcc\x00I\x91\xd4`Q\x12-Yv\xb5\xdbm\xbb\xcb.w9\xe4\xf0\xec\x88\x8a\x8e\xe8\xe8O\xd0\x9f\xc1\x9f\xa4\xff\xe9\xa8py*\xbb\xcb\xb6dY\x83%k\xb0\x06\xda\xa4Dq\x00\t\x90\x98s\xce;\x9ca\x0f\xef\xb0\xfa\x8f\xf5\xeeso&amp;2\x81\x04\x08\x80`\x1f2\x01\xe4\xb9\xf7\x9c\xb3\xcf\xdek\xaf\xe1Y\xcfz\x96\x11\x11\xe1G\xfa!O\xf0\xbcy\x9f\xdf7\xef\xf3^ "\xbb\x1f\x0b\xf2\xae\xf74\xd3\xfb\x18\xfd\xb71\x17\xdf\xfb\xe1\xf75|\xf0\xc7\x87y\xcd\x0f\xef\xe1\x7f\xd8\x07\xf0\xe1\x1f\xf2!\x7f\xf6\xb8\xdf\xd7\x0b\xf7\xa8\xfb\xcc\x18\xc3\xbb/\xacy\xd7k/\xfe\x8e\xbe\x8d\xec~\xc7\x98G\x19\x86\xf0\xe4\x063\xbd\xd7\x8f\x86\x81\x99\x1fM\x8f\xf5A\x8d\xea\xf1\x1e\xeb\xdd\xdf^\x1e\xf1\xbc\x90s"\xa7H\xce\x89R29\x17D\x04c-\xc6\x18\xbc\xf7\x04\x1fp&gt;`\xadE\xa4\xfa0\xf3\xe8\xe3x\xdc\xf3\xef\xff\xf8\xd10\xac\x1fA\x8f\xf5$\xa1\x0f\xde7\xfc\xc9\x14\xd2\x1e2"\xa3O\xe4\x9cH)\x12\xc7\x81\xbe[\xb3\xd9\x9c\xb0&gt;=\xa6\xefV\xf4C\xc7v\xdb1\xc4\x91\xd9bI\x13&lt;\xcb\xf9&gt;\x07\x87\x97\xd9\xdf\xbf\xc4|\xb9O\xdb.\xb1\xce\xe3\x9c\xc7Z\x8b1vw\x1c\xc6\x98\x07&gt;\xf3\xdd\xce\xecqa|\xfa\xd9\xa7\xdf\xb8~\x84\x0c\xeb\xc3\x84&gt;y\xec\xd3"\x02F\xff]J!\xe7D\x8c=)\xf5\xc48pvz\x9f{wop\xf7\xf6\r\xee\xde\xb8\xc9\xd9j\xc5\xd9\xe9)\xa5$\xc61rv\xb6a\xc8\x91\xa3K\xfb,gs\xbcm\x98\xb5\x0b\x96{\xfb\x1c]\xbe\xc23\xcf\xbd\xc0\xfe\xc1\x01\x07G\x9788\xb8\xcc|q@\x08-\xc6\xaa\xa1\x01\x98\x9a\x93MF\xa6\xe9\xd9d8r\xe1;\xfc\xe8\x19\xd7\x8fP(\x94\'|\xee1\xaf\x96\x87_c\x10\xc9t\xdb3\xee\xdd}\x87\xdb\xb7\xde\xe6\xc6;\xafrvv\xca0\x8c\xacN\xcf8;=!\x8f\x91\x9c`\x8c\x89\x18#cLl\xb6#\xc3\x10\x99\xcf\x02\xfb\xcb9\xc1\xb7X\xe34\xfc\x19\x83\x0b\x96v\xd1\xe0\x9ce6\x9bs\xe5\xcaU\x9e}\xfe9\x9ey\xf69\xae]\x7f\x8e\xab\xd7_\xc0\x879\xc6\xd8\x9a\xd3I\xf5Z\x9a\xcb\x9d{\xb0\xf7\xf2\\\x8f{\xee\xd3\xf1\xf8\x110\xac\'\xf0T\x8f\xc8k\x1fL\x9e\xa7\xa4\\=D\xc9#\x9b\xd5}\xee\xdc~\x937\xde\xf8\x0eo\xbe\xf6}6\xab5\xab\xb3\x13NO\xd7\x0c\x830\x0c\x994\xf6X[\xf0M\xc0X\xcf\xb6\xeb\xe9\xfa\x81\x9c\x04k,\xdeB\xdb\xcch\xfc\x0ck\x0c\xa5\x14\x8a\x08\x85L\x92\x88\x00\xde\x07\xe6\xb3\x86\x83\x83\x05G\x97\x0e\xb9r\xe5i\x9e{\xfes\xbc\xf4\xd9\xcf\xf3\xdc\x8b\x9fe6\xdf\xaf\x06\xa6\xc7\xbb+\x14\xaa\xd32\x9c\x1f\xf7{\\\xc6\x1f\xf6Ez\xd7\xe3G(\x14&gt;\xc1c\xca\x9bv\x86v1Y\xd6+\x95\xe2\xc8\xbd[op\xf3\xed\xef\xf3\xc6\xeb\xaf\xf0\xe6\x1b\xdf\xe3\xee\xdd;\x94,\x8ccd\xb3\x1d\x18FH\xc9 \x05\xbc\x03\xe7\x85R\x84\xa1O\x8c}$KF\xa4`\x8a\x90\x8b\xa5\xa7`\x10\x9c\xb3\x08\x85\\"\xc6\nM3CD\x18\x86\x91\xb3\xd3LI\x91\xbe\x1b\xb8\x7f\xef\x98\xb7\xdfx\x93\xe7^z\x85\x17?\xfby\x9ey\xf63\xec\xed\x1f\xa2q\xb1~\x91\xa9J=\x072\xde\xfb\x8b\x7f\xca\x8c\xebSnXO\xe8Lw)\x89L\xff\xc7\x009\x8f\xa4\x18\x89qD\xa4`\xad\xe5\xf8\xee-\xdex\xe5[\xdcz\xe7-n\xde|\x87{wN\xe8\xfaD\xce\x99\x18#)er\x11\x8c\xb18oq\xc6"Y\xe8\x87\x8e\xb1\x8b\xc4\x98\xc8%\x92K\xc2\x1a\x8b\xf3#1\x8e\x18\x01\xef\rB\xa4Hf\xde\xb6\xe0\x85"\x05\x9c!\x17GLjd1\x9eqz\x7f\xc3\xad\x9bos\xe7\xf6;|\xf6\xf3\xb7x\xe1\xf9\xcfs\xf9\xda3\xb4\xb3\xb9\xe6^\x0f\xbb\xe1\xf7\xb5\x9dO\x97q}\xcaC\xe1\x13\x1e\x9a\xc8\x85\nO(%\xb3\xdd\x9c\xb1:\xbd\xcb\xc9\xf1]NN\xee\x13\xe3\xc8b\xb1\xe4\xe6[os\xf7\xd6\r\xba\xcd\x86\xb3\xb3\x15g\'\xa7l\xbb\x9ea\xec\x11#d\xc9\x94,4&gt;\x10| \xe7\xcc0\x0el6\x1d\xfdX\xc89+\xcc\xe0\x0c\xc1{\x8c\xb1\xf4}\xc6\xe0\x10\x19\xc9e\xc4{\xcb\xacY`\xac\xc5Z\x87q\xe0\xbd\xa5i\x1a\x16\xb39\xcb\xe5&gt;\xde7 \x19\xdf\xc2\xc1\xc1&gt;/\xbe\xf8\x05~\xeaK?\xcf3/|\x86\x83\x83#\xac\xf3\x17\xb0/\xc3.\x05{\xef\xcb\xf9\xc3\xbe`\xe7G\xf2\xe95,y\x9f\xbf\xc3\xe4\xaa\xa6\xfc\xa4\x14!\xa5\x91\xe3\xbb7x\xf5\xe5\xaf\xf3\xe6k\xaf\xf0\xce;or\xeb\xd6M\xb6\xdb\x9e\x83\xa3+\xcc\xe6\xfbH\xec\xc8\xe3\xc00\x8c\xf4C$\x8e\x91\x98#\xceB\x91\x8cd\xc1\x18\x07\x08\xc382\x8c\x91q,$\xd1\x12\xae\x88\x00\x16\xdfxrJ\x8c}B\xa4\x90\xf3\x88\x11\xc1\xfb\x80\xf3\x9eT\x12\x8b\xf9\x1cc5G\xf2\xde\xd3\xf8\x06\x110\xd6\xe0&lt;,\x16\x81\xf9|\xceb~\xc0\xd5\xabO\xf1\xc5\x9f\xfa\t\xfe\xfc/\xfe\x15\xae\\}\x06k\x9d~Kcv\x15\xe4\x13\\\xd2\x1f\xf6\x85\x03&gt;\x95\xa1\xf0I\xed\xbc\x1a\xd5\xf4O\x11\xc6\xa1\xe3\xc6[\xaf\xf2\xa7_\xfd\xaf\xdcx\xf3\rn\xdf\xba\xc5\x9d;\xf78&gt;&gt;\xa5O\x89m4&lt;}\xbd%m6\xc4\xb1c\x8c\x91\x9c3\xce9f!\x10B\x00\x84~\xe8\x19\x86jPC$f\x01\xe3\xb1VHE\xbd\x16\x92)}A\x8azH)\x11k\n\xde:\x8c\x18\xa4\x14\xe6m\xcb\xac\t8o\xa96I\x8c\x03CL\x84\x10\x98\x19OI\x8e\x92\x85M\xb7\xe5\xf4\xfb\xafr|z\x97&amp;\x04\xbe\xfc\x8b\x7f\x95\x83\xc3\xcb\x15\xffb\xe7\xbd\x1e\x84&amp;\xde\xeb\xfc\xfdp\r\xecShX\xef\xf7x\xb0m"R0\x18\xfa~\xcb[\xaf\x7f\x9b\xaf\xfe\xd1\xef\xf2\xf6\x9borr\xac\x06\xb5\xd9\xf4\xa4\x04R`\xecV\xdcy{\xc0\xe4\x8c\xb5`\xad\xc1;K\xe3\x1c\xcez\x10\x88Y\xc8\x19\xc6(\xc4(\x08\x0e$\x93S"\x9bL\x01\x9cw\xbb\xdc\x0bc\xb0\xc6\x01\x05c,\xc1\x07\x1a\xdf\xaaW\x92B\xe9{\x92\xb5\x84\xa6\xa5\x995H\xf0\xd8\xe0()SJ\xa6\x1b"\xd8\x91v\xe6\xb0\xd6\xb2Zu\xfc\xe9\xd7\xfe\x1bB\xe2\xcf\xfd\xcc_\xe4\xdaS/`m\xa0\xd4\xef\xb9\xfb\xee\xf0\xc0\xdf\x1fw\x8e~X\x8f\x1f!\xc3z\xf0dM\x11\xdc\x18\xcbv{\xc6\x9b\xaf\x7f\x97\x97\xff\xeck\xdcz\xe7&amp;\xf7n\xdf\xe5\xde\xfd\xdb\x9c\x9en\x89\xa3\xc1\xb9\xc0\xb2\xf5\xf8\x023\xebX\xce\xe64\x8dC\x8cP\x00c=\x14\xc3\x10#\x00%\t\x92\rF&lt;\xc6T\x08\xc0&amp;\xa4\x180\x82\x88\x90$Sr\xc2\x18\x8b\xa1\x10\x82\xa3i\x1c\xb3vFc\x03q\x1c)\xd9 xR\x11r\x1a\xd9nFd\xf75,}\x16\xa4O\xd5\xf0-m\xdbb%s\xe3\xc6-\xfa\xe1\x8fX\x9du\xfc\xb9\x9f\xf92\xcf\xbf\xf4c\xcc\xe7\x07\x9a\xdb=Q\xb2\xf5\xc3O\xe4?E\x86\xf5\xa4!Pv\xe1@\xa4p\xfb\xe6[\xbc\xfa\xca\xb7x\xfd{\xafr\xfb\xe6-\x8e\xef\x9dq\xef\xfe\t\xc7\'\x1b\xfa\xedH\xebg\x1c\xceZ\xf6\x17-\x8d\x13\x0e\xf7\x97\xec/\xe7\x88\x14\x86\x14\x19R&amp;\x031\t)\'bR\xcf3\x9b\xcf\xb1\xd6RJ\xa1\x1b"}\x1cq%\x83\x05(\xc41RD0\x02\x8do\x98\xb5\x01\xe7\xd9Ut\xc1;Lc\x11\xec\xae\xa0H\xf5O\x1c\x131A\xcc\x10K!g\xc1\xe2\xc81c\x9d\xc58\xd8\xac\xb6t\x9b\x8e\x93\xb3{\xfc\xccf\xc5\x9f\xfb\xe9\xbfP\xe1\x0bv\xc6\xb5\x0b\x8b\x8f\r\x89?&lt;\xe3\xfa\x94\x18\xd6\x93\x19\xd5\x84R\x03\xa4\x94\xb8\x7f\xff\x16\xdf~\xf9Ox\xe5\xdb\xdf\xe6\xfe\x9d\xfbl7[\xee\xde\xbb\xc7\xf1\xd9\x86a(8\x138X\xcc\xb8~\xb8\xe4\xf2|F\xe3a\x7f\x7f\xc6boN?&amp;\xd6[\xb5\x93\xb1dR}_g,n\xdejUf\r)&amp;\xc6$\x04\x11\x8cm1VH1\x92m\xc1Z\xc1`i\x9b9\xc1\x07\x8a\x8c\xa4Tp\r,\x1630\x86\x143\xce\x19\x0c\x9eR2c\xca\x8c8\xba\x9c\x10\x03Y\n9\x17\x86a \xc5\x881\xe0\x82\x86\xe6q\x1cYo\xb6\xc4Q\xd8\xdf?\xe2\xb3\x9f\xfb\t\x9c\x0b\x8f8/\x9f&gt;\xe3\xfa\x14\x18\xd6\x07+JE\xa0\x94\xcc\xfd\xfbw\xf8\xd6\xcb_\xe7\xe6\xcd\x1b\x18\x0c\xde[\xfa\xed\x19\xfdvM\x1e3\xc1y\xf6\xe6\rW\x0f\xf7\xb8~\xb0\xe0h\xde\xd0\x18\xa1\x9d\xb74m\x83\xb3\x16\x03\xb8\xc1a\x86H\n\x99\xbd\xa5\x05\x13\x10\xe3\xe8cf\x18GR\xce\xe4\xacpB\x13\x02\xb9\xe8s%\x0b\xc1\x05\x8cU\x18\xc1X\x83)\x0e\xc1blC\xd3\xcc\x15\xc2\x10\xa1\x088#X\x84\x99\xf7,\x0f\x16\xec\xb5\x89a\xcc\xac\xc7\x91D!\xa5H\x9f3\xde9\\\x0ex\xafX\xdaf5\xf0\xfdW\xbe\xcf\xd1\xe1\xefstt\x99\xcbW\x9e\xc19\xc7\xc3F\xf3x\xe3\xfa\xe1&lt;&gt;\x05\x86\xf5^\x8fw\xf3\xa4D2g\xa7\xf7y\xe5\xbb\xea\xa5\x1a\xebY\xc5\xc8\xe9\xbd{lWk\x16M\x83\xdb74\x08\x87\xcb\x05O_&gt;\xe0\xfa\xe1\x82\xbd\xc6\x13\\ \xccgj\x04\x8c\x888\x8cm\xb1\xbe\xe0\x05\x96\x08CLt}\xc2\xc4\x02\xc6\xe0\x83g\xff`\xa9-\x9e&lt;\x12SD\x8a&amp;\xd2\x06\x98\xb5\x01c3\xde[\x8a8\xc6\xb1\xd0\xf7\x05S\x06b\x1cq\xc1\xd2\x18\x8bXC\x08\x96y\xd3\xd2\x06\xcf\xb8\x1d\xd9\x98\x0ek\x1cgCf\xd5\xf5\xf4\xe3Hh\x1a\x9a D\x9f\xb1\xce\xd3\xcc,}\xd7\xf3\xedo}\x9b\xcb\xd7\x9e\xe2\x17\xff\xd2_g\xb9w\xa8\x10\x84y\x12\x8f\xf4\xc3\xa9\x12?\x05\x86\xf5(\x86\xe5\xc5\x9f\x9d\x1bU)\x99\xd3\xd3c^\x7f\xed{\xacOOH}\xc7\xdb\xaf\x7f\x8f\x9bo\xdf`s\xb6\x01\x04o-\x07\xb3\x86\xfd\xd0p\xed\xe8\x90kW\xf6\xb9\xb4\xd7\xb2h\x1b\xda\xf9&gt;a\xb1O\xce\t{r\x0fa\x8bm,\x8d\xf1\x84\xb1\xd0\xe7\x88o\x04l\x8f8\x83\x1b\r\xc30(&gt;\x96\x15D\x1d\xe3H\xce\x95\x87\x05\xa480\xa6\xcc\xba3\x94l\xa0X\xbc\x0b\xa4\x94\xb0\xce0w\x16\xe7=\x8du\x04kp\xc6\xd0\x04O\xbb\xe7X\xcc&lt;\xdb~\xc0\x9e\xad\xc9c\xa4\xe4@\x1c3\x9009\xedN\x81H\x01+|\xeb\xcf\xbe\xceg&gt;\xf3\x05^\xfc\xcc\x02\x1f\x9az\xdf}:\xe0\x85\x87\x1f\x9f\x02\xc3z\x9fP(\xe7w\xe5ju\xca\x1b\xaf\xbf\xca\x9b\xaf\xbfF\x1c\x07\xee\xde\xbc\xc7\xe9I\x871\x81\xf9bN\x1c:$\x8e\xec\xb5s\x9e&gt;&lt;\xe4\xe9\xa7\xaeq\xf9\xd2\x1e\x8b\x99\'\x04O\xbb8\xc0\xcf\xf7\xc99"Dl0\x0c\t\xc6b)\xb9\xa3\x14\x10\x03\xadu\x94\xd0P\x8aa\x1c\x0b\xd6\xc1l\x11h\xe6\x96n\x08\x0ccFr!\x8fI\x0b\x80\xa2 \xa93\x9e\xfd\xf9\x1em\xdb"\x14fsO\xc9#\x19\x08\xcb\x96e\xdb\x12\xac\xb0\x08\x9e0s \r3\xe7\xf0@\xeb\x1c\xf7V=\xc7\xeb\x0e0\xb4\xed\x1c0\x0c]"\xf8\xc4\xa1\xf5t]\xcf\xf7^\xfd6W\xae]\xe3\xf0\xe8\x1aT\x8c\xeb\xe2\xa9zt8\xfc\xe4\x8d\xeeS`X\xef\xfd\xa8\xbe\x8a\xd5\xea\x94\xdb7\xdf\xe6\xfe\xbd{\xf4\xdd\x96\xb3\xe3cN\x8e\xef\xd3\x84\x00\xb3\x86\xb1\x0c\x04\xefh\xfd\x82g\xaf^\xe1\xb9\xab\xd7x\xea\xa9k\xec\xed/\t\xc1\xe1\x82\xc763\\\x98\x91\xe3\x80)\x11\xe7,\xbe\x1f\xb0}ft\x161\r6\x16$@L\x99`\r{\x8b\x19\xc3h\x1030\x0c\n\x88\x89dbN\xe4Z\xd1\xc5\xa4H}\xf0\x15`\xed;(Bp\r\xde\x89\xe6\x80\xd6\xd14\x9e\xc6\x8a\xc2\x1e\x8d\xc3\xbb\x96\xd6xf\xc11o\x03M\xf08[8\xd9\x8cPF\xda\x99z\xa6\xe0\x03\xc6X\x86a\xe0\xd5W_\xe6\xea\xf5\xeb|\xe1\x8b3\xf6\xf6\x0f+\x04\xf10%\x9a\x87\x08\x11\x9f\xbcW\xfb!\x19\xd6\xfb\x11\xf3\x1e\x0c\x81}\xb7\xe1\xce\xcd\x1b\x9c\x9c\x9cT\x8aIa\xbd:c\x1c;\xbc3\xd82\xb2\xf0\x86\xfd\xc5\x1e\x87\xed\x82\x17\x9e{\x86kW\xafrppH\xdb4X\xef\xb1\xc1\x83\xf3\x18\xeb\xc8\xce*\x1d\xc5Z\xb0kr\xde\xd0xK\x8c\x82\xb7\x86\xc6e\xbc\x11LI\x98R(i\xa0\xa4L\x1c39fJJ\xe4\x18\x89\xb1P\x8a \xa9`\x8dShb\xec1\x05\xbcu\x0c\xbd!,\x1a\x9c\xf5;2\xa1\xb1\x8e`\x1d\xa1\x9e\xfc\x10\x1c\x8d\x9b\xd14\x8e\x10\x02\xde9\xe0\x84\xd3\xbe\'EK\xd3\x06B\xb0d\xc9\x8cq`\xbd\xdep\xe7\xf6M\x9e}\xf63,\x96{\xbb\xb6\xcf\x93\x19\xcf\'W%~J=\xd6\xb9\xe1\xe5\x1c99&gt;f\xbb\x1d\xb06`\x9d\xa3\xeb{\xb2\x14\xda\xd6\x91\xfa-^2\x87\xcb9\xd7\x0f\x0e\xb9z\xf9\n\xcf&gt;\xfb,{\x07\xfb4&gt;`\x9dU\xc6\xa6uPKuc\x94\x9eR\x8c!\x8ba\x1c3\xbe\x1b\xb01b\x11\xbc-\x04\x0b\x0eaL\x11\xc9\x1a\xfa(`\xd1&lt;\xc9\x19G6\x06L\xc1YA\x8a0\xc6\x88\x88r\xb5\xc4\x19\x8611k\x1b\xc0\x92Ka\x1c"\x0b\xeb\x08M\xc0#\xb8R\x00\xc1z\x87\x0b\x01\xe7g`&lt;1\x0b\xc3\xbdD7\xf4\x84\xa6\xa1\xc8\x82,\x99\x98FJ.t\x9b\x9en\xbb!\xa7\x88m&lt;\x1f\xac\r\xf6\xc9&lt;&gt;\xa5\x86\xa5\x0f\x11\xa1\xef7l\xfb\x8e\xc5\xfe&gt;\xb6w\xdc\xbe\xfd\x0e\x9b\xf5\x9a\xb6\r\xb4n\x8fh`N\xe1\xf2b\xce\xb5\xcbWx\xfa\xb9\x17\xb9t\xe5\n&gt;8\x8c\x01k\x0c\xe4\x02\x13\x04f,X\x83\x0b-^\x0c\xa1\x15\xc2,\xd1\xccFf\xc5`\xed\x08b\x985\x9e\x94[0\x16\x17,\x82 Y\r\x88\x02&amp;x\x9c\x83R\n1\x8d\x0c\xe3\x08YCQ*\x85"\x8aI\xcdcR\xfeV\xf1X\xb1\xb8b\xf0R\xf12\xa3\xfc-\xc1(n\xe6\x0cI`\xcc\x85&gt;en\x9f\xac\x18\xc7D\x1cF\xday`\x1cF\xd6\'+N\xee\x9dpzz\xca\xd5\xeb=\xa1\x99=\xf2\xdc=Q\xc1\xf81&gt;~\x08\x86\xf5d\xfc\xf4R \xa5\xc8z\xbd"\x84\x86a\x8c\xdc?\xbe\xc7z\xb3\xe2\xe8\xe8\x80n}\x9fT\x0cG\x97\x9fb\xcf9.\xef\xcdy\xea\xfaU.]\xb9L;\x9f\xd5b\xb3`\xaa1H*\x80\xc3\x04\x87\xa9|w\xeb\x1c\xa1i\x99\xcf\x97\xa44\xe2\x9c\xa3\x1f\x15\x93\x12c0\xd6\xe1\x9cc\xd3\x17\xca|N)\x10cb\x10\xa1\xe4j`\x16\xbc\xf3$\x97\x10\xc9\x80\xa1\x14\xf4\xcaZ\xc1z\xa5@\x1b#4!0og\x18\xb1P\x0c8S\x07-\xb4\x91\xee\xbc\xc5\x1d\xcc\xf1\xde\x933l\xfa\xc8f\x8c\xa48\x12\x87\x86\x92\r\xabq\xcb\xf7^y\x95\x83\x83\x03.]\xba\xccby\xa0m\xa5\'2\xa2\xff\xbf\x0e\x85\xef\x05/&lt;x\x12b\x1c\x891q\xf3\xe6;\x9c\xdc?\x01cx\xea\xfas\xf4\x9bSn\xf4=\xfbW.qi6\xe7\xb0m\xb9\xb4\xbf\xc7\xd1\xe1\x01m\xab#X\xc6(\xc3@\xd2\x88\x140\xd6"\xa6\xba-)XPz\xb1q\xcc\x9b\x16\x7fx\x89\x8dw\x98\xcd\x96\xedfK\x8e\x85\x9c\x12\x92#P\xb0\xce\xe2}%\xff9pE\xb0\xd6\x12\xf3\xc4v(\xb8\xda\xd46F\xb9Z\xcb\xc5\x92\xf9\xa2%\xb4\x1e\xbc\xc18\xa3ED\xa5\xd1\x18gp\xb6&amp;\xdf\xceb\x9c6\xb7\xc3\xfe\x1c\x8bg\xd5\xafx\xeb\xce}\xd20`X\xe2,P\xa0\xeb\xb7\xbc\xf9\xe6\xf7y\xea\xd9g\xb8|\xf5)\xf6\xf6\x8f\xb4\x19o\x1ejR?\xd2\x8e&gt;\x19\xe3\xfa\x14y\xac\x0b\xbf!B)\x89\xbe\xdf\xb2:;\xe5\xd6;\xef\xe0\\\xe0\xea\xb5k\xcc\xe7-gd\x0e\x96\x07\xa4\xcd\x06\xdf\x16\x0e\x8e\xf69&lt;:\xa2m\x1a\xbd\xb0\xd6\xa1C\t\x82\xb4\x06\xd3hn\xa5)M\x86\x92\xd5\xa1`\xf0\xd6`\x9c\xc5\x88\xa74se*\x14C\xd3\xce\xd9\x0c#\'g\xa7\xac\xeevt\xdb\x8e\x92\xb5\xd9l\xa3!\xf5\xda\xbe\xc9\x02)\tF\x1c\xde\x1a\x9c3\x84\xe0Y,\x96,\xe7K\x1a\xef\xb0F\x90$\xe4\x98\x91R\xc0:\x8c\x15\xfdc\xac\x86\xebJK\xb6\xd6\x10\xda\xc0\xa5p\xc0S\xdbK\x9c\xad7\x9c\xf6\tH\x84v\xc6\xd9i\xcf\x90=w\xee\x1ds\xf3\xc6\r^&lt;\xbe\xc7r\xef\xe01\xe7\xf7qC\xb6\x1f\xff\xe3S\x95c\xedJ\xe5:\xd7W\xb2\x10Sfo\x7f\x9f\xa6\x99\xd1\xb4\x8d\x1e\xb4\x0fH\xca\x8c\x9b\r\xcd\xa5\x03\x96\x8b9\xb3\xc5\x0c\xef\x1cV\xea\t\x9c(\xca\xae&amp;\xb7"X[C\x98\xb3\x98"\xd8R\x94\xad`-\xd69\xda\xb6\xc5Y\x03{\x99v\xd6\xb0\x9fa6o\x89)\x92\xb2a\xdd\x8dP\n\xde44!\x93\xd3@)\x19\x8b\xce\x0c:ch\x9c\xa7\t\x01g\xa0\x8c\x03)Z\xc4Zf\xf3\x86&amp;8\x0c\x05\x8b\xc5\xd9:\x8dc\x04\x1d\xeeQ\x10\xca\xd4?\xcd|\xc6\x95\xa3\xab\x9c\\\xeaH\xc7\xf7Hq \xcb\x82b \x96D\xd7\x8d\xdc\xbf{\xcc\xfd\xbbwx\xfa\xd9\xe75G{\x98\x01\xc2\xc3\xf8\xe9\xfbM\xfd|t\x8fO\xd8\xb0\xde\xcb[\x9d\x87H\x11!\xa7H\xdfw\x0cc\xe4\xe0\xd2\x15\xe6\xed\x0c\x10r\x1c\xb1\xc6b\n\xcc\xe7\x0b\xf6\x0e\x8f\x98\xed\xed\x13\x9a\x19V\x89\xee\xd5\x8eJE\x0c\xadR\x97\x8bf\xd6F\x13\xa0z\xc6\x0b\x1a\xe6\x0c\xdex,\x05+\x8e\xec\r\xc6X\x9a\xd6\xe3\xdc!i\x1c4\xa1\xef\x13\xa7\xab\r"j\xf01h\xe2-\x15\x99\x0c\xd6\xe1\x8d\xc3\x14\x83\xc4\xc2XzL\xf0\xcc\x17\x0b\xf6f-\x8b&amp;\xe0\rx#X\xa3\xaf\xd3\xe0\xac\x83\x19\xc6\xbajl\x06g\x03{\x8b}\xae\x1c\x1d\xb1\xee7\x9c\xc6\x11g=\xcb\xfd\x96n\x18\x01\xc3j\xbd\xe1\xde\xdd;\x0cC\xcfb\xb1\xff.L\xeb\x87\xf9\xf8\x04\r\xebqs\x81\xe6\x11\xcf\nc\x1c9==&amp;\xc7\xc4\xfe\xde!\xf3vF\x8c\x03%FD2\xde\x1bf\x8b\x03\x96\x97.\xd1.\xf6qM\xc0HALBJ\r9F\r\xc8HQ\xc3*\x9a\x0b)\xe5\xa4hro\xce\'x\xb0\x06\xb1\x16\xef\x1c9EH\x85\xb9\x85\xa3e\xc3\xb8\xd70k\x1b\x1a\xaf\xc4\xbf\x94# \x8c\xc6\x90\xc8jX.\xe0\x8d\xc5\xa3F\xe6\xbce1k8\\\xb6\x1c\xcc\x02\x0b\xefh\xac\xd5\\\tArA\xac\xd2\x94E\x04r\xc2\xfa\x80C+\xc6\xe0\x03\xcb\xf9\x9cE;\xe3\xa4\x1b0\x19\x8e\x0e\xf6i\xc3\xc0b\xb6\xc4{\xcf\xd9\xd9\x8a{w\xef0{~\xb9\x1b\x84\xd5\x87y\xf0\xac_\xa0\xdb|\x12\x8f\x1fb(|\xbc\xf7*E\x18\x87\x91\xed\xa6c\xd6\xce\x98\xb5-E\n9e\x8a\x88^T\x1b\x99\xcd[\xe6\x8b\x19a6\xc3:\xa7\x86c-\xc4\x11\xeb\xa4\x0e\x90\x8a\x1aW1\x08\x16+V9\xeb\x92v\xdd"e\xe3\x94\x9d\xd19\xeb\xf1\xc6P\xe2\x80\xc9\x85\x96\xcc\xdc$\xc6\x1cY4\x96\xa3\x83%H\xe1l\xbd\xe2,\'\x92\x01\xb04\xbe\xa1q\x96`ao&gt;g1\x0b\xb4\xde\xd2z\xc3\xdcff\xb6h\xce\x85ze3\x8d\xdc\xef\xe6\x08\x0bd\xa5\xe2X\xabEB\x08\x8e\xb6iq\xc5\xb2\xbd\xbf\xe2`y\xc4\xb2\x99qxp\xc0\xde\xfe\x92\xa1\x1fx\xe3\xf5\xd7\xb8\xfe\xd43\xb4\xed\xe2\xbd\xcf\xb8\xf0\x84\x8d\xeb\x1f\xfc\xf1C4\xac\xc7\x7f9\x11A\n\xcc\xda9&gt;hC7\xa7D\xca5\x9cI\xa1mg,\xe6s\x9a\xd0\xa8Q9\x07\xd6`\x92\x01\'\x18\x1c%g\xd4\x13\x81\r\xa8\x17\x13\x83-\x15\x82(\x1a2u\xc6\xa7\xa8\x17\xa3\x80d\xe5EUlia\x03\x07\xcb\x91\x98\xce\xc8C"ZCn&lt;\xc5[\xa23\x8cbp\xd6\xd16\x1e\x0b8\xc9,\xbce\xcf[Zgh\xbda\xe1\r\xad\x17\x9cU\n\x8e1\x16\xb1\xd4\xcf\xce\x152\xf0`\x05E#2E2\xc6\x18\xda\xa6a\xd6\xb4l\xbb\x9e\xe3\xd33\x8c\xf7d\x81\x9c\n9\t\xfb\xa7gt\xddf\xd7_\xacg\x91s\xda\xe1\'\xff\xf8\x98\r\xeb]j\x1b\xef\xf9\xdb\x17\xc6K\xb1\xce\xe3C\xd0|)\x15\xbc\x0b8\xe7\xd8\x8e[\xc6m\xc7\xc1\xde\x11\xcb\xc5\x1e\xce\xf9\xfaI\xca=\x17+X\x17\x10\x93\xb1u,L\xb051\xce\x88\x18\x8c\x15\x1c3\x8c\xb5\x15RHuLk\xf2bf\x17:\xacu4\xbeeoy\xa0\xac\x06\xb3\xc1\x96\x8c\xcb\x06;:\xf2\xd02\xda\x841\x0e\x9b"\xceXf\xb3F\rI\nsk\x99\x05\xcf\xcc{|U\xa6\x11#\xb8\x1az\x8b1:\x94\xbaK\xe0\xc1x\x0f\xc6\xd5\xea\xd1\xd24\x81\xe5r\xce\xfad\xc5\xb6\xdfb\xda\x86\xed\xc9\xc0\x18\x93\xdex\xe3H\xbf\xddP\x0e.\x9f\xebB&lt;"\xd7\xda\xe5\xef\x9f\x80\xd7\xfaTU\x85:P.Xkhg3\xe6\xcb%g\xc7\xc7\x18k\x08\xd6S2\xe41\x11\xfb\x91\xa6\tx\xd7\xe8k\x8a\x82\x91\x82\xc5\xb8\x00\x16L\x8eJU`J\xe2\r\xe2\x1c\xc68\x8c@q\x83Vh%C\x81b=\xc5\n\xd6%\xac\xcd`G\xcd\xe7b\x87\xf1\rm\x13X4\x81\xd4\x1b\xc4\x81o\x1c\xb3\xfd=fxV\xdb-B\xc1\x1bC\xeb\x03\xed\xac\xa1m&lt;\xad\xb5\xcc\xda\x96\xd0\x18\xac5\x18\xb9p1\x8d\xadM\x00\xb3\x9bv\xb6\xc6`\xad\xc7Y\x87q^[X\xd6\x13|\xc3r\xb9`/&amp;\xb6c\x0fdf\xf3\x05b\n\xfd\xd8\xb1Z\x9fr\xf7\xcem._y\x9a\xa6m\x1f8\xa3\xef!%\xc7\xc7i\\\x1f\xa3a}0o\xf5\xb0\xceB)\xa5\x9eh\xbb{\xceZ\xbb\x03?\xd5\x03Y\x05AK\x86\xe2\xc0\x19m4\xef\xa86F\xf3.\n\x06\x7fNm\x96\xa2\xe1\xa8x5.\xa3\x04\xc2\x1a\x1b1\xdec\xad\xc7\x00%%e\x9aZK\xdb8\x1a\x0b\r\x05c\x1d\xed\xcc3w\x9e\xfd\x99gL#\xdeYfM\xa0\t\xda\xd3tu\xf6\xd0\x1a\xd9a)\x02\x9a\x07bw\xdaZ:\x16\xa9\xb3\x8a;\xb5\x06\x01\xc9:\xc9S(\x18gh\xda\xc0z=\x10\xfbBh[\xb2d\xfa\xa1c\xbd:\xe3\xd6\xcd\x1b\xbc\xf8\xd9/\xd0\xb4\xedc+\xc3\x1d\xf2\xf0\t\xa4Y\x1f\x93a=\xc9\xb0\xe9#\x1eU\x9b\xaa\x94BN\x11g\xf5\xc2\x88\x08\xb9\x14\x9c\xb3\x84\xc6\xd3.f:\\j\xb4\xd3Vj\xd9n\x8c\xd1\xe1\xd0\x02X\x8b\xc1\xd7R\xa8~~\xcePT8\r)\x18\xe7\xb0\x04\x8a\x01\x13\xa5\xcaA\xd6J\xd1\xd6\xa2\x12\xab\x1e\xd1%\r\xa1\xde\xe0\xad\xfe\xd0z\xcf\xaci\x98\xcf\x02C\x1c\xb0\x16\x1a\xefp\xd5p\xc0b\x9c\xd1\xf6\x8d*|h!a/\xaa\xcc\x18\x1d\x13\x9b\n\x89\xea\x815\x1f,H\xd6\n4\x89\x86xg\x83N\x17\xa5L\xb7\xed4M\xf0\x81\x83\xbb\x87t\xdd\x86\xfd\xfd\xc3\x9d\xfe\xd6\x83\xf6uQ\x0f\xe2\xe3O\xdf?}\xa1P\xa4\xb6\'\x04\xeb\xeadr\x11\xb2\xb5X1\xb8\x10\x98-\xf6 v:\x8cPP\xc3\xaa\xf8O}\x9b\xfaGs\x14(\x88\xa4\x9dG"\'\x85\xe1\xa5bG\xaePK;(\xb2K\xe8k\x92E\x11\xb4\x01-\x82sJo\xb1\x08\xbei0\xd6\xe1\xe3H\x08\x16\x8czY\xed\x1ci\x88+\xb0\xc3\xd2\xd4\xb8\xaa\xf1\x8a\xa0\xd9\xbb9\xf7V\xd6\xed\x98\x17p\x9e\'\x95\\G\xd2\xc4aM\xc0\x9aL\x8a\x99\x14{\xc6!b\x9c\xe1\xf2\xd9\x19\xddvK\xc9\xf9\x82\xc8\xdb{\x15H\x1fo\x85\xf81\x19\xd6\x87\xadE\xce\x15\xef\xac\xb5\xc482\x0e\x83^&lt;/\x18k\xf0\xbe\xa1\x99\xef\xd1\x8f\x03\x82\xa3\x00\xb5\x1f\xac\x00)\xb5/X\x8f\xc3TQZ)\xbb\x1f*\x1a_!\x06\x8dP5\xf7\xaa\xf4\x1a\x99\xd0{\xe3\x80\\=\x8c\x832`qx\xe7q\x16\xc2l\x86\xc1b$c\x8b{\x003\x12\xb15w\xaa\xcfNX\x95\x08%\x97\x1a\x06e7\x88j\x9c\xd1\xdf\xa9]\x82\x9a\xc7c\xb1\x98b()\x91R!\xe6D?\x0e\x84V\'\x89\xa2\x14\xc6\xa4@\xed\xa4+\xf1\xf8k\xf2\xb8s\xfe\xd1\x1b\xd7\xa7\xcecM\xdf5\xa7B\x1c3\xde+S\xc1X[G\xd9\x8bV\x8b\xc6\x91\xb2\xea5\x88\x94s\xfd\xab\xda\'\xb4N\x07R)\x05\x8abC\xea\x15\x002bl\r\x97\x06[C-\x92\x91\x1c\x91\x18!\x17,Z\xb5Y\xe7\x14\xa2\xa8\x89\xb5wN\x9b\xce\x12\xc1:B0\x98l)9Q\xa4h\x15Z\xbf\x8d\x15E\xd61\xa2\xbdK5E\xc4\x18\n\x06k]\xfd\xbbEL-6J\xbe\x00\x83h~\x19\xc7\x91\xae\xef\x89\xa9\xe0\x9c\xa3q-&gt;x\xb2$J.\\\xb9|\x99\xc3\xc3K8\xef/\x00\xa1\xefc4\x1fcL\xfc\x84r\xac\'y\x9c\xe3/"J\r\xee\x87Q\'e\xac\x85\\\x889\x03\x10\xda9\xf3\xfd#\xbc\x11b\xd71\x1aCp\r\x12\xea\xfb\xecX\x95\xd5\xe0\x8c\xada\xd1Q$!\xb9h\xc5\x87\xc1L\xf8\x97\xa9!I\xf4\xc2\x96\x9cj\xd2\xac\x93\xceB\xc45\x06\x9f&lt;%\xab\xde\x821\xda*2\xb9`\nX\xd1\xe4{r\x8eVD\rF&amp;C\xa9\xe1m\x17\xaa\xcf\xd5\x98\x8dT-,\xa3:\x0f\xd6\xd8\x1a\xa6m\xf5v(\xc0K\xc1\x87\x86v\xd6\xd2\xb6\x81,\xa9\x8a\x8d\x04\xbcw\x1fh\x04\xec\xe3\xcc\xb5&gt;U\x1ek\xeau\t\xca{\xea\x86\x91\xe5b\x813\x96\xbe\xdb\x12\xe3H3\x0b\xb4aF3\x9f\x11W\xa7\x903\x8d\xf7\xe4\x92w\xbd\xb7\x9d\x90\x86EO\x9d\xd1\xf6\x8e\x18\x81\x98\xeb\x05\xd4\x8aQJm\xfe\xfa\x80\r\r\xae\xce-\x9a4 1c\xadWj\xf2\xd8#\xd6\xe1\xbc\xc7\x05_\xdbF\x06\x8c\xdf\xd1]\x8a\xd5v\x0f\xa2\xca~\xaa\xdf0}\'\xcb\xa4\x0f/R=\x14\xc2.k\xaf\xc6-\xc6T\xb8V\x87\\\x9d\xf5x\xefT\x02\t\x8fq\x911\x0bC\x1c0NX.f\\\xbfz\x8d\xe5|\xa1=\xd1\xdd\x18\xfe\x871\xa3\x8f\x8e\x1b\xff)1\xac\x07\xbf\xb4\x96\xf7\x8e\x83\xbd\x03B\xe3\xc8Q\x15\x8c\x87~K\xca\x0eJ\x82\x94\x89\xc3H\xce\x89v\xdeRJM\xb8wX\x91\xde\xfd\xc6\x08b+\x02m\\\xc5\x8f\x9c\xe6\xd3)#9\x01\x06I\x19#\xb6\x92L\x95y`JV\x07\x16\x07r\x1cj\xd8U\xcf\xa6\xe9q\x06\xe3\xb0m\x83\xc9\xa2\xc9^\x16\xa4\x18\x8c\\@\xfd\x8d\xad!M\xc9\x86R\xa5!\xf5\x88+\xbcP\xd1KA\x8f7\x97\xa4\xe0h;c1_\xb0\x18\x06F\x19Hx\xfdY5X\xef&lt;\x88pvvJ\xdfm98\xbc\x0c\xf6\x03\x0c\xb0~L\x80\xe9\xa7&amp;y\x97ZzOj\xc6&gt;x\xe6\xf3\x96\\\x12\x18Q\xee\xbas\xa4q\xe4x\xb3\xc6\x94\xccpv\xc6\xde|\xc6"-(9\xe9\x85\r\x9cW`\xd4+6\t\xb3Y\xa9\t:;H\x81TK\xfb\x82\xa2\xe7\xd6Q|\xc0\x85@v=9\x8d\xda,\xcePb\xac\x9eH\xcdA\x91r\xad`q\x86"`\xc4b\'q\xa5\x92\xf5(4\xceap\xbb\xb0\xbc\xdbnqA\xb0O\xbd\x8dU\x03\xcf\x05\xeb&lt;\xb3\xf9\x82\xfd\x9c\xd8\x0e=\xeb\xbe\xc7P\xf0\xc1\x03\x06\x93!\xc5\xccj\xbb\xe1\xf8\xf4\x841\x8ej\x98\xbbS\x7f\xd1X\x1e\x8fm=\xd4\xae\xfeH\x1e\x1f\xa3\xc7\xfa \xc6U/\xbe\x91\x1d\xdd\xc5XHi$\xe7\x02@h\x1a\xe5\xc0o3\xeb\xcd\x96&lt;vt\'\xc7\xcc\xfc\xf5J\x8b\xa9\xbd\xb1)W\xaa\xef+\x15\x10\xd5\x06s\x9d\xcc1\xb6\x02\xa9`L\xa1\xe4\x825Y#\x12\x05\'\x82kZ\\\xdb\xab\xa6h\xf6\x902\x98\x04%"E\xeb=k]5\\\xf5N:\xc4*8e\x11\xee\xe8\xcbz(\x13\xb65\x89\xc5\xa9\xa7\x92\t\x1a\xd8\xf1\xb1\xbc\x1a\xa0v|\xb0\xb3\x061\xfbt}\xc7\xf1\xd9\x19\x92\x07\\h\x11\xb1\xe4\xa4\x03\x1a\xbe\xf5d\xa3\x05\xc8\x87\xd1\xd1;\x17\x17\xf9\xe8\xbc\xd6\xc7\x1c\n/6D\x9f\xe07\xe5\\\xf3\xaa\xa4D\x8c\xb5\x877iP\xd5\x9f[gI\xa5\xb0\x9c/Y\xcc\xe6*\x1d\xd4\xccp\xde3e\xc62\x01\x9dR\x03\x8chu\x88\xb5\xe0\xdb\x9a;\'\xc4\x15L\xca@\xac(}M\xa6\xad\xc363\x1d\x80`\xa0\xe4LN\x0eS\nf\x9a\x9a\xc0b\xad\xd7\x9c\xad\xe8w\xb4F(&amp;\x81\x18\x8cqh&gt;\xaf\xa0m\x11m\x0bg\xa9\xcc\xd3";&gt;\xbcu\x0e\xeb\x1d\xd6\xa8p\xdb\x94sY\xefhL\xcbb&gt;g\xde4HY\x91S\xc2\x86\x16k\r\xd6\x19\xda\x99Rz\xe2\xa0\xc7i\xc2\xfb\x9e\xeeG&gt;&gt;J&gt;\xd7\'\xd0\xd2\x99*\x9f\xf71.3]P\xbd\xab\x87qT.9\x16\xef]\x15\x9f\x1du"f\xe8\x89]\xcf\xb3\xd7\xaes\xed\xa9\xe78\xbaz\x85\xd9ry\xceu\xaf\xd5\xd6\xe4\xad$\'\xad\xf4\xca\xce}`lC\xb1\x06\x91\x84\xf1\xea\xc5\x0c\x82\xcd\x85\\zE\xcb\x8b\xf2\xe6\x8dQ\xfa\xb2HV\xc6D\xd1\xa9\x9fB\x01[0&gt;\xa8\x8eVR\x8cJ\x8a\xa9s\x84\xb2\x931\x12T\x1cD\x80L!\x8aeL\x89\x18Gr\x8cXk\x99\xef\xed\xd3\x16G3\xb3X\xa3\x05\x02\xd9\xe10\xcc\xda\x96y\xdb\xeap\xc7\xd0\xe3Jf\xbe\x98\xe1\x9a\xa0a&lt;[\x9d{\xcc\x89\x1f\xac\xde\xfbh\xf2\xad\x8f9\x14^&lt;\xd8\'\xf9B\xfa\x18\xc7\x91\xb3\x93SJ)\xf8eS\x01IK?l\xb8{\xf7\x06\x9b\xe3\xfb,*\xddwyp\xc0l\xbe\x87s\x8e\xf3\xb4\xfd\xbc=\xa3\xd5[\xd6D\xbd\xe4\x1d6d\xb2\x12\xedJV\xba\x8c\x12\x03\x1db\x03b\x83r\xc2\xba-\xa9\xdfb\x9b\xba#\xc78\xb2\x8c\xd5\x9b\xa0\x90D.8\xa7\xb9a\xc9\xb1\xee\xd8\x81\\2\xa5\x08YTNRj\xfb)c\x18EXu\x1b\xbaqd\xbd\xdd2t#\x8d\x0b\\\x1e\x0b\x87\x97\x0c\xaemq\xd6#\x95\xa4h\xad\xd5)\xea\xe0i\xac\x87&lt;\x92$\x11]d\xb0\x0eo{J)\xcc\xe6\xf3\xea\xb5?\xfc\xe3\xa3R\xad\xf9\x84\x9a\xd0O\xfa0\xf5"\x83w\x01\x13,\xde\xa9N\x14\xc6\xe0\\C\x1a\x0bi\xc8\xec?s\x9d\xbd\xc3K\xb4\xf3\x19\xd6\xdb\x1djmL\xa9ew\rW\x060\x96\x94\x0b\xa9\xef+\xad\xc6c\xa5\x1a\xc3\xe4\xd1Di\xcfq\xd80vk\xfa\xcd\x9aa\xb3&amp;\xc5\x81\xe0\x1c\xce\xba\x9d\xa1Z\x1f\x14\x13\x1b\x06\xa4\x18l\x98#9\xe9"\'\x041\x8eT`\xe8\x06\xc6\x92\x19rb\x88\x03c\xce\x8cb\xe8Sa\xdd\r\x0c)\xd3\x8f#N`\xd9\x08n\xb3\xa1X\x85&gt;\x0e\xdb\x05\xbe\t;\x12\xa2w\x96\x99\xd7\x8eA\xf0\x01\xe3UZ\x12\x11\xacA\x8b\x8c\xa2\xde\xea|\x19\x81\x9e\xd3\x0fn\\?xH\xfc\x94\xc0\r\xd3\x17\xd2\x13\xd1\xccZ\x0e.\x1d1V\x80t,\xa5\xea$\x14\x8cq\xec\x1f]\xe6\xf2\xd5\xa7X,\xf6\xf0\xce\xa81\xa1\xaf\x95\x92k\xf9\xac\x7fr.\x0c\xdb\r\xeb\xe3c\xfa\xf5\n\x91D\xbb\xd05%9\r\xc4a\xabs{}\x87\x8c\x91\xdco\x89\xdd\x86\xd8oIC\x87!#\xde\xe3\x9d#%\x15\xc35\xbe\xc1\xd9\x00E\xa1\x10?\xb7H\xad\xd0\xc6\x9cH\xc0\x103\xfd\x18\xd9\x0e\x91\xbb\xab5\xc7\xeb5}J\x14\xa7\x9d\x81\x14\xf5;\t\x99y\xe3)\x08cJl\xb6[\xac?\xa1Y\xec\xb17\xbf\xacC\xad)\xe1\x8cc\xd6\xb4xS{\x08\xd6\xd6V\x95\xe0\x1d\xf4\xdb5]\xb7\xa5\xd4\\\xefAHj\noO\x8eS\x9dKq~8\x03\xfb\x18\x0c\xeb\x83z\xaa\x0b\x14\x97\n94\xa1a&gt;\x9f3\xf4=1&amp;\xc6q\xa0\xdbn8;9f\x1c{\xae\\\xbe\xc2|6\xc7\xedN\xd6\xd4\x19d\x87pS\xa9\xccC\xbfesv\xca\xea\xf4\x98\xb3\xfb\xf7\xd8\x9c\xdd\xc7\x06\x87\x0b-i\xe8\x19\xbb\r9G\xe2vKI\x11\x93Fm\x1dWv\xc1,x\x8a\x14\x82\x0f\x9a\x0f\x95\x8c3F\xfb\x8d6\x10\xbb\x11;\x8cHJ\x0ccb3\xf6\xd5\xb8,}\x12\x8e\xbb\x81\x9b\'+\xee\xaf\xd6$\x84\xd0\x04\x16mK[U\xfb\x94\x11\x11Tc\xc2\x05R\x11\xb6\x9b-\xeb\xd5\x8a\xd9\xde\x12\xdb\xb4;l$\xf8\xc0,xl\xd7+A\xd1LRJI7\x92\xadO\xe8\xd7\xc7\x04gq\xbe\xe5\xf1\xb9\xed\x93\xe7Q\x1f\xd6\xc0&gt;2\xc3:?\x80\x1f\xf8\x9d\x14\r\xb0\xa6\xf6\xc7:\xd6\xeb\x15\xdb\xd5\x19\x9b\xd5\x19%e\x82\xf75,\tF&amp;\t4\xb331\xa9\xe1-\xf6\x1d\xdd\xd9)\xdd\xfa\x8c\xbe\xdbpvz\x97\xe3;\xb7\xd9\xf6\x1d\xfd\x18\xe9\xbb\x9e4\x0cub:cJ\xc1Q\x98\xcd4\xa7\xf3\xd6\xb0?o!\x8e\x84\xd0(7\xcb\x19\n\x85L&amp;#\xc4\x9c)\xdd\x1a\x10\xfa\xa4\x1e\xaa\x8b#\xd9Z\xbadX\xf5\x1dC\xec\xc1d\x1agY\xce\x0cG\x0b\xcf\xfe|F\xdb\x06\xac\xf1`=\x98@\xc1\x92\x92be}\xb7e\xe86xg\x95\x19k\x04\xef\x1c{\xb3\x86\xdbg\x85\x18\x0bXE\xef7\xdd\xc0A\xcc\x1c\xdfx\x93\xb7\xca\xc0\xa5\xab\xcfr\xf0\xd4\xf3,/]\xc1\xf9\xf0\xc4F\xf4~\xd7\xf7\x83\x18\xd7GbX\x17\xb1\x93\x0f\x9e\xfc\x9dC\x12\x13\x04e\x8c%4\x01g5\xb4\xf5\x9b5\xe3\xd01\x9b\xcd\x98\xcf\xe7U\xbdE\xbd\x86q\xa1\x02\x8efw\x00"\x85\x94\x13\xe3\xd0\xd3o6t\xab\x15\xdd\xea\x94\xb1\xdf2[.\x89\xb9pz\xba\xe6\xf4\xf4\x94\xbe\xeb(\xa9\xe0q\x04g\x98\x05\xcb\x983\xce\x08\x8b\xc63sVG\xeacV&amp;\xabot\xb5\\\xbf&amp;\xa6\x91l\x8a\xa2\xf2\x06\xc6T\x18c\xa1\x1b\x12\x9b8\xd2\xc5B\x1f#\xc6B\x1b,!\x18\xf6g\x96\xfd\x19\xccB\xc1\xbb\x82\xf3\x86\xd04\xb8fN1\x81\x94\x0by\x181\x08e\x1cu\xb86x\x8a\x11\xbc7\xec\xcd\xe78k\xc9i\xc4\xba\x80\xb1\x86\x9c\nf\xc8\xdc\xfd\xee\xf7Y}\xfd\x1b\xec\x1f\x1e\xf0\xc2\x97\xbe\xccK?\xff\x17\xd9\xbb\xfa\x0cS$x\xf79\xff\xf8\x8c\xeb\x076\xacG\x01rS\xce\xfc\xc1\xbe\x83\x99\xdcMm\x99\x18BpH\xc94M\x003\xa7\xdf\xf6\xaa\xc6\xe7\r1\x8f\x94\x0bn\xbe\xc2\x8e\x15\xaf*\xa4q$\x8e#\xb9\x14\xac\r\xec\x1d^f\xef\xe8\x08k\r\xc3\xfa\x8c\xe3\xdb7\xb9{\xfb\x06\'\'\xf7\xd9lz\xfam\x0fIg\x0cs\xa9\xed\x98\xa2\x0cU}\x0f\x985s\x9av\x81\xb5\x90zE\xe5\x91D.\x861\x17\xbaad\xdb\r\xac6\x1d\xa7\xfd\x96&gt;\'\xc611\xa4\xa2\x10C\xe5\x8e\xf5c\xaa\xca~\x81\xc5|\xc1\xfe^bi\x85\xc5r\x9f\xb6\xddG\xb2h\xa1\x91\x12i\x1c\x15\xcbChf3\x0e\x8e\x0eY\xde?\xa6\xf7\x16\xdf\xb4\xccC\xc3\x02C\xd3u8\x036\x15\xc6\xe3S\xee\x7f\xef\x15\x0e\xae\\cq\xe9Z\xd5,5\x1f\xe4b\xbc\xef\xf5~?\x03\xfb\xd0\x86\xf5~\x08\xef\x87kg\n\x12{\xe2\xfa\x8c\xee\xf4\x84|\xe7\x1e\xe9lM\xc9\x19\xc90\x0e#)\x0fX\xbb\x0f(}\xe4bK\xa4R\x00\x14C\x8a*?\xd4\xce\xe6\xb4\x8b=\xac3\x18\x19\x89\xdb\x13\\*\xc4EaX\x18\x86\xad\xa5\xdf\x162\x89T\x121\x1a\x9a\xe0\xea\xf0\x83\xa1\xa4Bi\x0c\xae\t\xb4{{\xb4\xb3=$f\xb2\xc9`"b\x84T\x84.\x8e\x1c\xaf7\xdc\xbe\xb7\xe6\xf4l\xcbHb(\x89U72*\xad~\xa7+_\x80\x98\x12m\x08\xec\xcdZ\x8e\x96s\x9e\xbe\xbc\xcf\xf3OG\xae]s\xcc\xe7\xfb$3\xab\xfa\x13\x99\x92#\xd6:\xfcl\xc6b\xb9\xc7r\xbed\x93\xc1\x19\xcf\xb28\x0eD\xd8\x13\x90\xed\x96\xd5\xc9\x19\xe4H\xeaz\x16\xfb\x87\x1c\xbd\xf0Y\xf6\xaf?]?\xd5|d\x00\xe8\xfby\xaf\x0feX\x1f\xa8m\xf0\x01\xf0\xb6\x92FJ\xb7\x85\xed\x16?f\x96\xb6a\x83c\xcc\x89\x820o\x1b\xc6X\xd8\x9e\xadh\x97{\x98\xdd\x00j\xd5x\xach\xbb\xe4\x8c5\x86\xd9r\x0f[\xf9I\xb1;\xe1\xde\x8d7x\xe7\xb5\xd7x\xf3\xcd\xb78&gt;[q\xef\xe4\x8c{\xf7\xcf8\xdb\x0c\xf4\xc3\xa8XPp\x1c\xce\x03W\x16\r\xa9mX\x1b\x87\xdf8\xae^\xbb\xc4\xe13\xcf2?\xbcB\x19\x12\xa5\x14\x86\xd8\x91%1Fa\xd3\'\xee\xae:n\x9d\xac\xe9\xba\x01q\xd0\xe5\xc8\xa6\x8f\xe0Z\xe5~yK\x12\xe1\xe4\xacc\xbeX\xb0\\\xec\xd3.\xf7\xd8t[\xbe\xf7\xfa}\xb6\xeb\x11)\x85g\x9fuZ\xb5\x96L\x8e\x1b\x9c\xcb\xb8v\x0fk\xad\xaeJ\xf1\r\x81\x1e_\x0c\xfb\xc1s)xf\x8d\xa3\x8c\x031\x17\xc6\xf5H\xean0\x9f\xff\x19\xd7?\xffE\x96\x97\xae`C\xf3\x91sd.\xda\xc1\xc3F\xf6\x81\r\xeb\x83\xf6\xa2*\xa4\xf2\xbey\x97H\x81\x9c\xb4*\xcbI\xf3\x89\xc3\x03\x92s\x94\xb3cV\xfd\x06;\xf3X\xd3\xb0&gt;9\xa1I\x89\x1c\x87\xf3\x01\x88)\x92\xd6\x9e\x9dog\xaa\xe4g\x0c\xdb{o\xf3\xe67\xfe\x98o~\xeb\xdb\xdc:Mt\xd2\xb2\x8d\x8e\xdb\xab\x8e\x9b\xf7O\xd8\xf6\x89\xc5lN\xd3\xce\xb1\xce\xb3\xde\xf6\xe4~\xc3\xb0\x18h\x9d\xd7\xa6\xb2kx\xfa3\x8e\xf9\xa5k\xaa\xcf\xd0xJ\xea\x18\x86-\x0c\x91~\x18\xe9\xfa\xc4\x90\x0bc\x85\x01\x861#b9\xda_\x82s\xf4%BI\xcc\x97\r\xcb\xe5\x8cKG\x87\\]\x1c\x90\x9dg\xd8Z\x0c\x81\xd3\xe3-\x8b\xe6&gt;\xcb\xa5\x86\\\x1f&lt;\xc5{Lk\xaa\xecR xG\xe3,\x8du\xcc\x83\xa3\r`\xc8\xd8\xc6\xa9r\xa1\xb5\x0c\xfd\x96\xd3\x1b\xefp\xfc\xda+&lt;\xf5\xd3_\xa6m\xda\x8f\x95\xe8\xfe\xb0\x07{b\xc3\xfaH\x96\x84\xbd\x1f\xa1qsJ\xf7\xda+tw\xefb\x96\x87,\x9ez\x8e\xfd\x83=b\x19\x18\x86\x15\xe3\xd0\x93\xc6\xc8\xd0ulR$\xc7\xf1\xc1\xb73\x06\x83\xc3zAL\x01\x89tg\'\xdc~\xed;\xbc\xf9\xca\xf79=\xcd8w\xc4\xf5\xa7\x9e\xe3\xee\xc9[\x9c\x9c\xdd\xa5\x9d{\x8c\xb3\x1c,\x97\\\xda;\xa25\x8e{7o\xb3Zo\x91\x929\xdaw,\x9a\x96b\x1aRv\xf80c\xb1X\xc2\xd0\xd1\x9d.\xe96g\xf4]BRQ(\xc2\xab\n\xf30\x8c\x90\x0b\xad\xf5\x1c\xcc\x02\xae\xf5lFa;f\x16{-!8\x0e=\x1cX\xa1=\\b//T\xe0-\x8e\xacNV\x9480\x9f\xcd\xb0\x8b\xf9D\xec\xc7\x18\x87o\x1b|\x13hC`\xee\x1c\xad\x15$\x0e\xe0\x1c\xa1m\xf0\xd6\xe2\x9c!c\xe8\xd7\x1bN\xdfy\x8bq\xb3\xa2Y\xee\xefxj\x9f\x84q=\x91a}\x14F\xb5K\xe8\x1fi\\\x82\x11!\xdf}\x87\xb3\xaf\xfd\x01\xc7o\xdeb\xfe\xc5/\x11\xf6.\xd3\xec\xef1w\x9e\x99\x18\xce6\x1d\x9b\xf5\x9a\x14#\xe2\xacB\x0ejQ;^\x91P(\xa9#\xae\xef1l\xce8\xbbs\x8b\x93;w\x99\x1f\xbd\xc0\x97&gt;\xfb\x0c\x06\x878\xc7+\xe9\x94n\xb9\xc4^:d\x8c\x19+\rG\xad\xc7fam \x8aA\x8a!\x84\x86\xeb\xd7\xafqx\xf9\x1a\xed|\x0e\xa5 )a\x8d\xa1i[\xda\xd0\x12\xec\x88\xb7\x0e\xe7\x0cm\xebh\xf0\x98,\x98Y\xa1\t\x8e\xd6d\xe6\xde\xb3\x0c\rC\xa3\xb4\x98`\x03\xfb\xce\xb0\xe7"\xcb\xe5\x82v\xde\x82\x11\xc6\x1e(\xa3\xd2\xb0E7\xb7*g\'a\xadQi\xefY\xcb|\xd6\xb20\xd0\x92\xa1\x1fqm\x8b\x17\x85K\xac\x08Y\x0ci\xc8l\xef\xdf\xa5;\xb9\xcf\xf2\xcau\xa6\xee\xf4\xc7)\x1c2\x19\xd7\xfb\x1a\xd6\'\xb2\xceP\x80\x92\xc9\xf7\xef\x92\x8f\x8fq60?\xbaJ\x98\xcdu\xe4K\n\xfb\xed\x9cMh9\x8e\'\x18\x81\xe5\xdeAUl\xc9;.\x17\x92\x91aM&lt;\xbd\xc5\xea\xd6k\xac\xee\xdf&amp;\xd1r\xe9\x99\x17y\xfe\xcas\xcc\xf6\x8e\xc81s\xf7\xedwx\xfe\xda\xd3\x98\xbe\xe3\x0e\r\xeb\xf5\x19%\x15l\xd71\xf4\x1d3_\x98\x1d-h\x83g\xafm98\xdc\xe7\xca\xb5K\x1c\x1c\x1e\x10\x82*\xfeY\xef\xf0\xa1\xc1\xfb@h&lt;\xf3E\xcb\xb2\x9b\x11\xeb&amp;\n\x7f\xb0\xc0\x98\x05\xc1\x88\x16\x03\xc1\xd1\xb6\x9e\xe0U?\xa2\rs\x9c\xd3\xd7\xfa\xe01^\xc3\xf8r\x19p\xce\xd2\x84\x86v\xd6\xa8\xe2\x8d7\xaa\x0eh-6g\x16m\xcb0ki\xf2\x88/`}\xc0\n\xd8R\xf9\xf4\x95\xc3\x1fKf\xec:\xc6\xcd\x8aR2*\xa9\xfb\t\\N\x91\xf76\xac\x8f\xcd\xa8v\xee\xeb"w\xaaP\xc6\x04Q\xb0"\x98\xac\x08\xb8q\x0e\x1fZ-\xcdgs.\x1d\x1e\xb1MY\xa7\x85w7\xde\xf9\xfb\x19\xeb\xb1&gt;\x10\x9a%\x8b\x83\xab\x98fN\xbb\x7f\x85\xb0h\xc1\x15\\\x08\\}\xee\x1a\xed\\\xd8_\x14\xae,\n\xf7o\x1aVg\x1b\xba~\xc0d\x95\x10r\xd6\xd2\x06O\x1b\x1arT\x1d\x89\xe5bIhT\x1a\xdbX\x8fs-.48kX6\x8e\xc3Y\xa0\xefz\xce\xbaA\xb5\xdd\xeb\xfc`\x89B1\x05\xeb\x0b\xb3\xa6\xa5i\x0c&gt;Xl\xa3\x9b\xee\x95\xdf\xae\xedq\xeft064\x01\xef\x94\xd9\xe1\xaa\x1cw\xc9\xea\xc5\xe6\xb39k\xbbf8\xed0iT\x10\xb7&gt;\xf44T-\x8aR0\xc9V\x8e\xd7\'+o\xf4X\xc3\xfaX\x8c\xeaQ\xe0\xd6d`\xd6*\x8a\x9e2l;\xd2\xfd\xdb\x94\xee\x05\xec\xe1!\xed\xd1eJ\xd3\xe0\xf7\x0f9\x18:\xee\x1e\xdfgs\xf7\xb6\x02\x83u\xb2T\x81U\x8f\t3\\\xbbd~t\x95foI\x8e#y\\\xe9\x06\xd5\xc5\x01\xd67X3\xd2\xf8\xc8\xb2\xc9\x0cm!\xb6\x85\xd2(\x03\x82\xc6\x10+~\xe5l\xa1\xdd[p\xe5\xe9g\xb9tEC\xa1\xf3\x01S\x95\x91\x8dqj\x88\xc6\xd3:\xcf\xa5\xf9L7x\x19\xc3\x90\x95n\xe3\xc5\x10\xac\n\x83x\xc0\xe4\xa4\xaf\xf1\t\xcb$&gt;\xa2\x03#\xd6\xd7\xb1\xb2\xd6\xab,\xa5q8\xe3U\xd8\xad(\x17\x1fc\xd8\xdb[p\xef\x06\xdc\xbfu\x17\xbbYa\x9e\xba\xcc\xfe\xfe\x1e^\x94\x1dkk\x9e\xe5\x8d%\xf89\xcdb\xaf\xaa\x1c\xfe\x90\r\xeb\xe3\xf2T\x0fl\x07\xbdhT"`\x02v\xae\xbd1\xe9\x8e\x89\xf7\xef\x91NO\xe0\xfa3\xf8Y\xcb\xd2\xc1|\xd1\xd2\x0c3\xb6qd}\xe7\x0e\xc67`\xa7\xbb\xb1\xca\x15\x19\x8bk\x97\x15v\xd8#\xf5\x1d\xc3\xfa\x8c\xb8]\x91\x86\x01\xdb,H)\xd1\x9f\xde\'n\xd6\x004\x8b\x05\x8b\x02\xb6iXf\xc8Y\xc5A\xe6\xfb\x87\\\x7f\xe1\xb3&lt;\xfb\xfcg8&lt;\xbc\xc4b\xef\x08\x1f\x1aJ\x1c\x00\xa3\xa4\xbfTp\xe2\t~\xce\xdeBy]m\xd30d!_ \xff5Ah\xbc!8\xad\xf4\xbc\xf7\xf8F\x873\xbc7\x04\xaf\xba\\\xc6\xf8J\xfa\xb3;\xd2\x9f)\x05\xb7\x9b\xe81\n9\x04\x8f)\x85\xedv\xcd\xea\xcc\xd14\x96ffTK\xa4J\x897m\xc3\xec\xcaUfG\x97\xb1\xde\x7f\x14\xfd\xb6\x0foX\x1f_N\xf5&gt;#\xde\xc6\xe0\xaf]\xa</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x00&gt;tEXtComment\x00xr:d:DAEewil2SDw:3449,j:8128288569400757339,t:24013019A\xe4y\xae\x00\x00\x04\xeeiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n        &lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n        &lt;dc:title&gt;\n        &lt;rdf:Alt&gt;\n        &lt;rdf:li xml:lang=\'x-default\'&gt;Elabora\xc3\xa7\xc3\xa3o de fotos - 1&lt;/rdf:li&gt;\n        &lt;/rdf:Alt&gt;\n        &lt;/dc:title&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n        &lt;Attrib:Ads&gt;\n        &lt;rdf:Seq&gt;\n        &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n        &lt;Attrib:Created&gt;2024-01-30&lt;/Attrib:Created&gt;\n        &lt;Attrib:ExtId&gt;a7171fb2-0707-483d-93f3-10bc642ccb84&lt;/Attrib:ExtId&gt;\n        &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n        &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n        &lt;/rdf:li&gt;\n        &lt;/rdf:Seq&gt;\n        &lt;/Attrib:Ads&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n        &lt;pdf:Author&gt;Jo\xc3\xa3o Izzo&lt;/pdf:Author&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n        &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n        &lt;/rdf:Description&gt;\n        \n        &lt;/rdf:RDF&gt;\n        &lt;/x:xmpmeta&gt;GCq\x02\x00\x00\x03\x00PLTE\xff\xff\xff +A\xff\xfe\xfe%0G%0F#,A ,B"-C$/E#.D\'2G\x1f(&gt;%.C(3J" \x1e\x1d&amp;;\x1a 0".D\x1e\x1c\x1a\x13\x19\'%$"\x10\x16#")?\xafrR\x80K.\xb2uU*%!\x15\x1c*\x1b#6\xb7{\\\xc3\x86k\x17\x14\x12 *@.(%\xbe\x80d\x17\x1e-\xba}_\x1b\x19\x16\xc8\x8dt.,)\xfd\xfd\xfd;50\xb5xYC=9d?,)(&amp;\xc5\x88n\x9eeG\xaapS2/,\x99dF,7L\xca\x8fv\xa5hG\x0f\x14\x1e\x99`A\xb0w[\xc7\x8bp\x95]@\x1f*@\x9fcB\xa2fG\x86T6530\xf9\xf9\xf9H0#\xc1\x82j\xactW\x91Y&lt;yH-\xc1\x82e\xacnN\xa0jK80,\xca\x92{\xa9kI\xa4jMj;"(!\x1c\x9e_=\xa4cB\x89M0\xa5nQ]=,\xbf~_\x83N1\x9bgM&gt;,#E*\x1b\x95aF\x8cV70&lt;Q\x91]&gt;\xf5\xf4\xf4\x8a\\C\xb4tX\xafpO\xf1\xef\xef\x8cZ=wC);74:&amp;\x1d\xbdx^\x12\x10\r4,(X0\x1b\xb9u\\*\x1a\x12\xb2nU\xa9lN\xafjJsJ4X8(%\x1d\x19jF3\x95dN]7#\xb6w_a;&amp;~O5\x82R8b6\x1e\xafjQq@\'HC?yL2\xbazY\xb4lMz]O&gt;:72\x1f\x14\x8aU&lt;iM&gt;ydZqF.\xbd|d\xcc\x96\x81oRE\x9aY8kB,!(;\xa3_=\x96Y9\x8bQ4!&amp;6@%\x15R8*O4%P0\x1f\xa9gN\x9akV\xadeF\x90_C\x0b\x0e\x16\xa8bH1$\x1c\x90ZC#/F_B4\x87_M\xa9a@NGC\x84V=\xa3rVP,\x18\xaalX\xb6pR8DY"\x18\x13~T=qM;\xa3p]\xa9w\\\xba\x83l\x84XB\xaeyc\xa1dM\x81H5\xa0^F\xb9tV_G=yXG;!\x14\xe6\xe2\xe2\x1e$2\x8f`J\xa0jR\x99ZB\xeb\xea\xea\x9bbK\x80E+C6/\x9fZ:xN7\x06\x08\x0c\xbc\x86vQMJ\xb6uSrZOyR&lt;\xb2\x7fdK=5\xc4\x85p\xb3m]V&gt;3\x90Q4\xdf\xdd\xde]VS\xd8\xd6\xd6\xcd\x9b\x89[(\x19\xd2\xcf\xd0\xce\xc8\xc7\xbc\xb0\xac\xc6\x88v\x90F9\x95R&lt;\x94V3~ja\xb1eI\xb6xh\xc3\xc5\xcb\xbb\xb9\xbb\xac\xa2\x9f\xacYRk3 hb_\xc5\xbf\xbd\x7fwtV_q\',;\x96\x8f\x8e\xa0\x99\x96\x8c\x83\x80u9&amp;\xad\xad\xb0fn|\xaa\x90\x89\xa5\xa3\xa6M"\x13\x91hV\xd0\xb2\xaa\x8epe\xac\x80tt{\x89\xa4QD  )42&gt;smj\xa0xjCPc\x88\x8d\x99iTKMTa\x93\x98\xa3\xdf\xc9\xc4w3\x92\xd8\x00\x00 \x00IDATx\xda\xc4\x98\xffK\x1by\x1a\xc7K\xfe\x80\xf9a\x18\xd0\x0e4aB&amp;\x93q\x9c\xd8)\x16\x9b\x92:\x89lu\'z\xd1\xad\xa9i\xa59Mo\xd4\xa1\xb6\xd6h\xab\xb2\xc4\xc8\xf4\x16\xebm\xa9\x0b\xba=\xf7.\xa5mv9\x89]z{\xe0\x1e\xa1K\x8e\\\x8fHk\xf1\x8c\xa5\xedB\xb9\xbb\x16\xa2\xa0R\xf0g\x7f\xbc\xf7\'\xde\x7fp\x89;:_\x82?\xf8\xe2\xfd~\x9e\xf7\xf3L\x8e\x1c\xf9\x7f\x0fK$\x9b\x89F|.\x9f/\x82\x1bN\x97\xcf\xe5\xb2\x1c\xf9%\x0f\x8b\xc5\xe2\xca\xec\xedl\xef\xed}\xdc\xdd\xdd\xda\xdf\xda\xda\xdd\xddy\xfbz\x1dh`\xb3\x90?\xff\x12P\xae\x88/\xf3q_RM\xd104\x8e\x95\rC\xd4%I*\xec\xef\xbcY_\xcff#\x11\x9f\xcfr\xf8P\xbe\xd7\x9b\xdb\x05]\xe4p\x98\xbaB\xd14\xab\x89\xa2\xc0q\x8a\xa8\xa7\n\x85\xad\xed\x0fo6\xa2\x87\x8de\x89f\xb7\x8b\x1288NR%IP\x14A\x909\x81\xd3\x15\x85eYN\xc4\x91\xda\xdf\xccd}\xaeC-\xa9\xecvA\x8c\xe3\x7f\x1b\x86\xc0\x80\x84\x93e\x8a\xa2\x18\x8a\x15(\x86\xc6\x13\xcdp\xaa\xa9K[\xef3Q\xdf\xa1\xd9\xe7\xca~(\xa6\xa4\xb8\xa4\xc5%8\xa8\x08*\x03\xa9\xc0Ub#\x17F\x96e\x06?bag#zH\x15\xe6\xf3E\xb7r\x10J\x87y\x8a\xa9\xb1A\x8ecdA\xa1)\x06B\xd14\xae\xe4\x91a@\x07\x87\xb7\xded#\xbeC\xe9\xbf\xe8\xee\xaa\xa8\x9b\x9ah\xc6M]TY\x8e\xe5\xa0\x95B\xc94_\x82\xe2y\x9ef\xc0\x07\x05\x19\x86\xd5\n\x1f_g#\x15\xd7\xcb\x17\xdd,\xa6r&amp;)+I\xd4L%HP\x14YWU\xf0\xa0\xb0l\x03\x84\x89\x92U]U\x88btp\xf5C\xa6\xe2X\x96\xf5\xedx\x0e\x16r\xaaf\xa0\xf9(\x1e\x86\xa1\x94t\t\x0c\xa8\'\xdaf#r1\x8a\xaa\x03TahF`\xd8\xd4N\xa6\xc2\xfdh\xf1mK\x9a\xa1\x99\x02\xa5\xb1,#S6\x9a\xa6q\xaa*\xa9|\x81\xa2\x89^\xb4\x8dQLIE\'*\xaa\x8c\xa2S8iw=RQ0\xdf&amp;\x9c\x93D\x89\xa3\x05\x1eY@\xd9x\xc66\xc0\x93\x06\xe48\x96%\x11\x81\xa2\xe2q7\xf3y\xc8\xa5\x12V\x963\xa4\xad\xcdH\xe5\x06\xa5\xc5\x12\xddRDSQ$\x96t\x1d\x05\xcbx\xdb\x1flp\x92\xe6\xf1\xc4\xf32iC\x1b\x8d\xc2\x12\x04!\x9e\x8a\xab\nR\x82\x8f\xb1\\\xeaC\xa6rX.\xdfF^\x14%JV\x18b\x16\xcd\x0f\xd8l6\x9c\xfc@\xe9\x027!\x9aL!\xed\x15X\xa8\xabfJ\xd2eT\x1f\xc5\x19\x85\xcd\xca\x95\xbd+\xba\'+\x9a\x8e\xe9\x87\xf2\xe6\xa1\x10p\x06\xfe\x010r\xc7\t\xfd`\'O\x05\x05=\x9e\xcf\xe7\xe3\xd0K\x97T\xd2\x16\x9c\xb1\xbf\x11\xa9\xd8\x1c|S\x94M\x8eexT\x91\x80\x94\x02\xcb\x81`\xff;x\xdeFq\x0c\xcb*\x80*\xe4\xf3)S\x901\x9aD\x92\xb4\x82\xf8\xa1RXG6\x8a\xa6n\xaa\x14\xfaO@VQ\xc8\xcd\x01\x14T\x89(\r\xb1H\xa9\xc5P\xe1\x8a(b^\x07\x05A\xd5\xe3\xb0\x9bBn\xd0\x8cV\xccT\xc8E\xdf\x86\xa4\xa3\xebQW\xbc\xc0\xd0\x82*\xa3\xba\xd2\xb14\xe4\xb2\xc5\xfa\xc8\x8dO\x834\x16\x0c\xc68\x85\x0b\xb2$\xc8d\x92\xf4\x14\xb1QH\xbd\xf7U(\xb3\xf6\xe2\xaa\xa8\xc0\x10E\x96Y\x8a\xc6\x02\x03\x82\xc1`\x1aGr.\x96\x8e\xc5\xd2i[:=\x18C\xe7):\xacT5Q\x15\x04\x05qF\xdbX\xd6\xd8\xa9\x0c\x96k=\xaf\xca\x06o\xa31\x981_bA\x96\xe3\x82\xc9p\xb8\xaf\xaf\xefV\xd2\x8fk\xb8o0\x99\xc4\xc7d2\xa9\x19\x86\x1e\xd7\r\x92dH\x12F\xc6\x19,d|\x95\txU\xd0Y:\xc8\x90\x94\x82UIMJ\xad\xadu\x8e\x8c\xd4\x0e\x0f\xcf\xcf\xcd\xaf=\xf8qn\xce\xff\xe0\xaf\x0f\x97F\x86\xfd\xfep\xd80L\x8d\x0b\xc6\x10\x1a6\xd4"E\xb1\xda\xc7J`\xb92\x05\x96\x15\r\xec|\x18z\xe9\xd8\xad\xbe\xb0\x7f\xed\xc7\xc7K\x17?m\xab\xbb?\xf1\xec\xd9\xf5??|8\xfat\xb4k\xb4\xeb\xbb\xdf\x8f\xde\xff\xf5\xd2\x9d\xaf\x01\xc6\x05q\x90\xa5\x02\xc9\xc1j\xdb\x95\xc0\x8a|4\xb5`J\xd1\x821&gt;\x96\x1e\x0c\xfb\xe7\xc7\xa6\'\x1a/\x9e\xb9Vu\xf4\xe8\xd5\xde\xe3\xd7\x8e\x9f\xfb\xee\x87\x17/\x9e&lt;yq\xea\xe6\xcd\x17\xa7\xce\xb5\xfd4\xfa|\xd8\x9f\xe3b|i\x16 \xceX\xb3\x90-\x7f/\xfa\xb2EUP%3HR\xa0\xcf?\\;\xd9}\xda\xdb\xd1\xfay\xd5\xe2\xca1\x87#q\xccnor[\xddn\xab\xb5\xc9n\xafq4\xdb\x1d5\xc7\xbb\x9e\xd7\xfa\x93\xb4\xadD\xc5\xd3\xac\xa8\xbf/?\x96kO74\x94\x0b=00x\xe1\xeb\xb1\xb3\x13\xdd\xb3\xed\x1d\'\x87zWj\x12\x0e\x87=\x04(\x8f\xc7\xe9q\x97\xd0\x9a\xfb\xfbC\xf6\xc4\xb1\xe3\xe7.N\xcc\xdf\n\xc6\x06J\x03\x8a\n\x8a\xbb\xe5_#\xa2\xfb\xaa\xa2r\x1a3`K_\xb8\xf1\xab\xc9\xeeOf\xbf\xf4v,,\x0c-&amp;\x12\xa1\x90\xbd\xb9\xc9\xed\xf68\xf1\xebq:\xeb\x9dN\xa7;\xd4\x1cJ\xd4T]\xf3^\x1e\xebK"\xcd\x00\xc63\xe2V\xd9\x8b\xcb\xb2!\xb1\xaa@\x196~\xf0B\xe7o\xcew\xcf\xce\xb6\xb7\xb7\xffqah*\xe1\x085[\xad\xcdn\x08\x05\x1a@\xd5\xd7\x07\x02\xf5\x017\xb0\x1255U\x9f~[\xeb\xefK\x93v\xa4\x14\xbd\x90-\xbb\x87\xbbFP\xc1\x06\x1a\x1b\xf4wNW7~2{\xba\x1d\x1e.L-\'\xecV`\xb9\xadNxX\x0f(g}`&amp;\x10pZ\tVU\xd5\xd1\x96\xb6Kw.\x84Y\xb2\x83\xe9j~\xbd\xdc\xc5\x15-\xb0$\xb0\x11\x9fs\x9d\xd7\xab\xbb\xdf\x11\xb5\xee&gt;\x1a\x9a\x9aZ\xb6\xbb\x81e%\xfe\xd5{\x0e\xa4\x02\x96\xc7\x13\n\x85\x12+\xbd\xbd-\xd7\xda\xbeYz\x90S\x10\xac\xaa\x98z]v\xac\xa2\xa6\x08q\xd1\xd0\xfc\xf3\xb5\x93\xe3_\xa1\xb2\x08\xd6\xc2\xd4\xe2r\xa8\xb9\x99xH\xdc#j\x05\x08Y\xc0CL\\\xe9]\xecmim;\xf1\xed\x179\x83Ue\xc9\x94\xca\xde\x8a\x99\x82*H\xa6\xae\xe5H4\x8c7\xa2\xb6\xbc\xed\x1d\xc0Z^\t\xd9\x01\x06\xae\xfaz\x0f\xe2\x01X\xb0\x11\x1e6\xa3\x17Wz\x87ZN\xd6\x9d\x98\x18Y\xc5\xe2\xafhj\xea\xed\x91\xb2c\xe9:\'\xeabnu\xbe\xf6luc\xf7\xbb/\xff~\x17j\xfd\x0b\x8d\xe8@#\x86\xacn\x92\x0e$#\x88b\xa4\xb4`bb\xaa\xb7\xf5\xe4\x89K\x13\x9d\xab\x1aKa\xcf\x89\xbf-\xbb\x89yEU`\xc3j\xceO\xb0&gt;#X\x8f\x1e\xa1\xb8V\x96\xedHR\xab\x95\xd4\x95\xd3c%\xbd\xe8\x81\x85\xf6P\xc8\x01\xb9\x86Z\xcf\\j|\xd6\x993\xf0\x82\xab\xaaR\xd9\xb12y]\x90\xa4xj\x15\xb55]]\xfd\xd9;"\xd6\xdd\xa1\xa1\xc5\xc5\x84\xbd\xd9NhHq\x01\x0b\x8ay\x10\x18v\xfbA\xcd\xb7\x9e&lt;=~\xbd3\xac\xc9,\xde%\xe3\x9b\xe5\xc6ZO\x91o\xd4R\xd2\xea\xdcp\xed\xf4\xd9j\xa2V\xc9\xc5\xa9\xa9\x95c\x08.\xf7\x81wd\xf6\x94&amp;\x90\xb5\xe4\xe1r\tk\xb2v-\xcc\n1\xc1\x94\xf2\x1b\xe5N\xd3LQ7\xc5\xb8\x04\xb5\xe6j\xef\x10\xac\x03\x17\x91\xf2=5v$\x04I\xf7z\x8c\x1d\x92a\x88V&lt;8\x12++0\xd1\xdb0\xd99o\xb0x]T\xa5\xf2\xc7id_\x14\xc9\xabL.&lt;\x7f\x03X\xff|w\x10\x10CS\xcb\xcbW\xfa\x01s`^s\xbf\x95$*iI\x0c\xeb\xe5\x92Z\xed\xe37\xfc\xe1$Y\x1a+\x81\xb5%\x01+\x1f\xcf\x85\xfdc\xd3g\xcf\x7f\x05\xac\xbb\x1d\x0b\x98\xd4\xcb\xfd%\x0f\x11\x0b\xb0\x10\xf7\x99\x19\xa4)\xd0\xacv{\xc9\xc4\x8e\xf6\xee1\x7f\x18{*\xc3j\xfbe\x7f\xf9qm\x8b)\xbc\xf6IPk\xec\xfa\xe4y\x04D;\xb6\x9a\xa3==\x84\xca\x19 ,d\xfc\x04f^\xcd\xbcz\xf5j\x06\xe9\xe5nB\'V\xb5vxO\xdf)a\xd1,\xb7_\xf6Q\xed\xda\x11\xe3\xf1\xbc\xb4\xba\x1a\x9e\xbf3\t\xac\xd9v\xef\xc9\xcf{z\xae\xdc\xec\xc7J\x03\x98WP\xa9\x9eHE\xa8\x80\xe5\xfc\xf9\xa5\xdd\xeeHT\xb5\x9e\xf464\x0e\xf7\xf5\x05\xb9\x18k\x14\xa3\xe5_\xb7\xa4\xb8\x84\xe2\xca\x85\xe7F&amp;\xc7\xcfc\x05\xac\xfb\xcb\xbd\xab7\xaf\\\xb9\xe2hjr\x06J2\x1d\xd0\x11\xc0\x80\xf3\xe5\xcb\'O\x1c5\xc7\xaaZ\xcfx\xbd\x97F\xfcI\x96\xa59\xb6\x02X\xef\x81\x157\xa5\xdc\xea\x83\xc7\x93\xcf\xc6/\x9fn\xa8\xfb[\xdd\xbd\x9e\xabW{\xfa\xfb\x9b^:\x7f&amp;\x8a\x05\xb0;8\x9d\x81\x00\x90\xfe}\xf3\xc9\xa9\x1f\xfet\xedxKK\xdb\x19o\xc3\xb7\x9da\xec\xf4,W,\xff\xd6\xfc&amp;nB,3\xb7\xf6\xc5\xe3\xeb\xcf&amp;~{\xe9\xf2\xfdo\xf0B\xd1\xd5\xd5v\xf4\xaa\xe3vSS\x93\x950\x05\x9cM\xb7o\x9f\xfait\xf4\xe9\xd3\xd1\xef\xbf\xef\xeaj\xa8\xbb\xd7V\xe7\xf56,\xf9\xd1\x89A\xaeX\xf6\xafG,\xff\x89k)I\x02\xd5\xef\x1e?~\xbe4&gt;\xfd_Z\xed\xf6\'\xad,\x8f\x03x\xe2\x1f\xb0o\xc1&amp;\x9a@Xw4DYR\xa3%j\xb6&lt;\x88(\n\xa8\xe0`\x1c\xae\x95\xf4Fo\xaf\xa0"\x82\xd7 \xcc \xb0@\x80\xec\x8c&lt;\x84\x12\xa1&gt;\x90\n\xcac\xe9\x06\x19(\xc6\x8eV\xad;-\xdbq\xda\xb2\x9b\x8d\xe9&amp;;c\xd2\xb5S\xb3\xc9\x9a4\xd9=t\xfe\x85\xdb\xc3;^}\xf2;\xe7\x9e\xf3\xfb\x9e{\xcd\xe6\xdd\xc8\xc0\xca\xca\x8c]\x9brC\x14\n\x85\xd9x\xfd\xe8\x88\xd9\xa9f\xe5\xb53S\x03\x03\x03\x91\xe0;\x8f\xca\'\xcd\'\xba\xe8Mt\xdf\xca\xdd\xe9k\xd7H?\xe3\x7f\r\xf1\xe6\xdex}}\xfd\xe1\x03\xab\xf5\xc0\x9aQR\xa9\xd4\x99\x99\x81\x9b\x8f\x86&gt;\xbf9\xcbq\xa5h\x10\x86\x80\x8252\xd5\xac\x84\xcc&gt;P\xc9\x8dK\x99\xa0L\x95\x952\x18*\t\xbdE\xba94\xdd\xf7\x9bk\x9f W?\xbbW\xcf\xe3\xf1\x0e?X\xadVC\xc4&gt;75gWFf@U\x96\x97\xa9\x1d\x8c\x04m\x14#\x1f5\xd6\x92[\xfb\xf3\x01\xedjL&amp;\x93\xa9T\xaa\x1d0\xa4l\x9f\x8aN\xa7\xfb\xbe\x9e\x9e\xfem\xdfO\xb8_\xbdU\xfd\xe5\xfb\xfa\xf1/\xeb\x1f\xecg2\x06\x03unN\xb9\xea\xf3I\xd6\xb6\xb6\xd6|\x9c\x05\r;E\xe3\x12\x10p\x021[i\xcdm\xfc\x9d\x00\x9b\x0eV\x9d\x84\xc6b\xf5\xf3\xd9\x1dR\x89\x84.]\xea\x9b\x9e\xbe\xf6\xd3\'H&gt;\x8f\xeby\xf5\x8f&gt;\xec[\xf7MV\xaa]\xa7\x1di\xa2Kvv\xd6\xc0\x18!\x12\x19\xcd\x84\x06r\xe3Q]-e\x94\xcb\xf2\x18\x8dlI\xf4\xaa\xbf\x8b&gt;\xc2\xa7\xf57u\x8c\x81r\xa92w\xa7\xa7\xc7_\xe0\xcf\xfa\xf6\xbf\xbc/y\x80\x951\x98\x96\xec\x1cmG\x87Fc\x94z\xa2\x9e\xac\x91.%\xba\x04\x8a\x06J-8q\x16\xab\xb7\xd6\x02DN2\xe0\xb9\xf2\xe4G\x86\x0b\x8c.~\xde(\xa5wI\x82C\xd3\xf7I/&gt;A|\xfd\x99W?~h0X\xc1\x1c\xda\xcd:\xbb]\xb7*Sy\xde\xbf\x8b\xc5b\xc6\x0e\xce+ax\xb0\x16\x1c\xd5\x9d\x84~)G.\xa7.\x0f\xdd\\Y\xcd\x8f\x89\xe5\x8c\xae.\x89\x14\xd4\xf5\xdda\xdf4\xe9\xcd\'\xb8x\xfb\xd78\x8f\xf4\x91e\xb5+\x95\x03\xb33\xca\x81\xdbwx\x8f\xa6Vc\x9b\x9bb9Q\xa0Xd\xde\xe8\x1c\x1c\xe5\xef\xb8\xc4\xc4\xc8\xed\xfb\xf7\xee\xdd9\xa4j\x8c#-\xed\xfc\xfe.0\xdf\xaa\x07}}\xbc\x7f&lt;\xc3?\xbf\xfe{\x9cD:4\x192\x86\x88Rc\x9e\x9d\x9a\xbay\xd8w\xff\xf1\xe3\xef\xb3\xf2\x80J\xd7\xcby\x15\nS:\xe1ts\xf3\x16\xdd\x98\x8c&gt;\xfd\xea\xce\xed\x87\xff4\xac\xcb\xd9|.\x8d\xd6\xdf\xd5"QYIw\x9f\x06$\xbf\xe0\\\xaf\xaa\xaa\xbf\xff\x8eD\xba\x07X\x19\xe5\xee\xe6\xc1\xdc\xe7\x7f\x9a\xd8\x1f\xfa\xea\xceC\xd3\xb1\xe7\xdce&lt;[p\t\xf5\x14J\xb8,t\xb0\x02\x9e\\";\xbb|\xf1\xe0\xd2\xa3]\x10\xd9z\xb8\xac\xc9\xa6\x96&amp;If\xfcvG*\x11\xc5\xf9}\xec\xad7?\xfc\x9eDzPa\xedj5\xe6\x89esr527\xf3\xee*\x1e\x95\x8a\x9a8\x0b\x05[\x08\xb2\x84C\x8e\x9a\'\xad\xf1h4\xbauu\x15\x8d\xe6s\xc3M\xce\x16\x02\x8b\xd0\xdc\xd6$1\xd4\x0f\xf07\\/\xff\x87+\xeb\x0fo\x95S\xb7\xc7I\x1f\x00kW\xa7\xe3\xf4\xce\xcd\xecj\x8c\x81\xbc\'\n\x0c\x9e\xb55\xddy\xe1$\x84\xa9\xc3\xde"m{;\x9a\xdf\x01\x7f\xc7\xe3\xf1V~?\x81\xd0&amp;\xec\x01\xddMB\x12&lt;\x94\xd1\x12?\xfe\x88\xeb,V}\xfb^i\xff\xe6.o\x1f\xb04\x1a\rGwp\x10\x93&amp;\xfaY\xac\xe8\x8eT\xe5\xf1\xc8\xe4\x85\x82\xa8\x88AaEQXs\xb9\xb5\x93\xcf\xf1Y\xf1\xd6V\x16\xa1\xb5\x9a@\xe8\xe1r{\x9a\x9b\xf2\xc1C\xc9Z\n\xf9\x0f\xbe\xacgs%\xfb\xdcP\xbd\t\xb0\xb4\xab\x1d\x1d\xb2\xd8f%Y\x0br\x0c\t\x981\x8f\xb8\x00X6\x07\x1a\xf6\x82\x8c\xf6\xe4\x12\x14jk\x83F\x83\xaa[\x1b\xa0\x86j\xee(\xb7\xb9\x8dN\x0f&gt;\xdd\xd9q\x1f\xa1\xf8\xb2^\x94.\xa8\xd4\x9b&lt;\x93\xc9\x04X&gt;\xdfX6\xeb\x93\xd2[\xda\'Y\xf1\xcb\xcb\xb8\x8f(\x02\xe3\xa5?\xac/\xfb\x1d\xde\xf4\xf6\xde\xf6\xf6\xde\xde\xdev-\xb9\xa6\xa1\x1a\x94\x8b;\xc9m\xa7K\x01\xcb\xed?Bp][U\x7f=/\xadP\xa7\x1e\x99^\x1b2\x9b\xb2\xacL\xe6\xa3\xf3\xdb\'G\x1b\xd4O\xb6\x9f\xc4\x13\'"\x91\xab\xc2\xd2\xeb\xbd^a\xa8\x8c\x00\x12`\x81\x8e\xb0\xd3B\xa9\xa9\xa6q\'A+(\r.\xf5\x8fVX\xf8\xc6\xc4\xe4\xd9\xd2,\xf5\x1b\xc02\x1c\xc4dY\x1f\xbd\xbd\xbd\x99\x0b\xb5B\xdb\xf1\xd6f\xdb\xc9\x89\xab\xc2\xf2\xea\xd3z\xc0\xf2\xa6\x11\xf2v\xa5^ \xf43)\x14hr\x12t\x82\xa0Z\x19\xfew\xdec\xf8\xcf\xf8.\xf9\xc0yd\x82\xfa\xb5\xe9\xb5\xe9c\xb9F\x9a\xda{F\x15\x84\x06\x08\xc2\xdc\x8e"\xa8\x96X\xecJa\x88\x05\xd6\xfb\x85^=\xcc\xb4l\xd7\xee\xd55V\x82#\x19\x1au\x83\xb6\x19\xb0\xb2\xeeA\x8a\x7f\x0f\xdf\xfe\xf4\x96\xaa\xa0\x9c\x9f]\xfe\xf0\x91\xa5\xd52rnL\xaf\xc0P\xf0\xf3\x87@\xb5\xc4D\x17\xdb\x8f\xc1\x9d04\xe9\x16.Z\xc8\xb5G\x15\x19\xb3\x91iA\xc2\\?\x08?t_P\x82\x0c6\xa2\xdd8\xef\xa6\x9e\xa4y~}}\xa9\xc2\x02;\xd6\xb0\xcd\xa1\xd0\xeb\xdd(\x84b\x8aP\xd1\xe6"\x8a\xd99?\n[\xc8\x08\xe6\xf6/\x82\xce\x9e\t\x1ah\x0b\x93\x8c i\x85\xd0)\x10\xb4\x8c\xc8\x82Q\x98\xd9m\xc1\xf9\xf0\xf9\xe2*\xb9p\xb6\xfe\xd0j\x02kkW\xa3\x159\x8b^\x0c\xa4\x1e\x04B\x15\n\xbf\xd3\x9542R\x95\xb6\x99\t\xa3\x98\x1b\xea\x04!\x11\x8c\x8a\x0e\xb0\x1c/\x9dmN\x86,\x18?j\xacS\xff\x82s[s\x99\x94\x9f\x95.\xac\xafM\xfb\xe0\xa4\x06,\xa17\x8c"0\x0c!H\xb8\xb9\xc3\x18`\x07R\x18\xf3\xf4\xf9\x1f-(\x8ab\x08\\wz\x1d\x84\xb4\xd3S\x0b\x9c\x1e\xf5\x17\x85\xedN\xf6Xp\xaf\x1b\x1e\x84pfU\xbdM\x16\x00k\xe9#K\xa71\xe6\xfc\x8a0\x16F\x00\x0cA\x87\x93\xb9D\xce\x98\xab\xb0\x9e3Q\x14AQ=|\n"\xec\xf5\xeb\xa7\x8d\x83i}\xc8\xe1\x10:\xd9\xa0Z\x962\x8c;\xeb\x87d\xf2\xbcT\xfa\x95\xa5\xdcd\xa7\xfc\xfep\x1a\x86+\xaa&amp;y2\xe5N\x18\x93)5\xc8\x88\xa8\xff\x18\x810\xa8\x8cT\\\xdd\xa77n a\x85\xd0&amp;p\x0e\xcb\x82j}(\x8d\xe1\xcdz\xb1\x9b&lt;+\xcd\xceTX\x91\xc8*[\xe0/\xeb\xc3\x88\xc5bA&amp;]g\xf2\x97\xb9\\\xb2W\xe4&gt;\xc6\xb0\\\xc0\x8fB~\xc8[\x86OO\xbb\xbb\xeb\x1a\x990hv\x04\x1fY\x1b~\x05\xe4\xc7\xb7\x81\x00\xfb\xe9Ar\xfe\xe2b\x00\xb0\x96"\x99\x18\xa8V\xe5J\x1e\xa8P\xa1\xabtVH\x96\x1e&gt;\x9cO\xbe\xcc\x19\x17J\xa5B*e!\x14\xcb\x08\xf3:(V\xe7\xa0\x1e\xb0\xda*\xac\x9cp\xc3\x8d;\xeb\x8b\xe0\xc2B\xe9b\xb9\xc2Z2\xac\x0e\x17\x85\xder\x19\xb6X \xa1@tV:\x9b(M\xac_\x94z\xe5I-x2\n\xeeN\xb2\xa0X\xb6X\xea\x1a\xc9\x83\x16}e\x12[\xd8\xb1`C\xa7zc\x03\xef\xd7\x18\x9f]\x9d\xd9g&amp;.\xf6\x7fe\xb9l\x8ePY\x9fV\xa3\xa9\xa2\xc0)\xee\xed\x95\xf7N\xf4\xf6.p\x92\xc6@\xc0\xe8t/\x0e6@\'E\xcc\xc2\xace\x92a\xb0\xb6Z\x04-\xc3\xb2l\xed\x8d\xed\xcbK\xbc?\x16\xacz+\x8f\x1c,L,\xbd\x06\xac\xcc\xa6\xc8V\x0cy\xcb\x18f\xb3\t\x1d6\xa7\xabCg\xee\xd5h\x03\x8c@^\x120\xb2\xdd\xe8"L\xe6\x8b\x1c(L\x1e\x84\xc11\xd9\x06\xb6\xd3\xb1X\xb6\xa6\x96\xac\xde\xc3\xfb\x12\xa2\xeaE\xc6\xb0i\x9e[\x01,k\xe6\x80\xf8\xca\xe6px\xdd\'\xb6f\x81\xf3D\xa4\xd9\xd5\x98\x89\xc6\\bC\x9a\xd8\xc9\x06\x02\xf9Du\x03\x85\x92\x13\t!\n\x9c\x0e+\x1c@\xc5\x18\x8b\xa9\xb0Z\x0b\xb2\x87w\xf2\xa9\xba\xf5&gt;\x06\x02\xcf2\x98D\xabUI\x04M_\xc8\x7fr\xd2\xc3e\x889:\xf3\xaeV|\x92\xdb8\xfe\xdb\x86\x9b\x9f\xcf\'T\xd9\x84\x84\xa5\xae\x11\x89\xb8\xd0\xe2wzEH \x10\xb0\x8d1\x0f\x06\xc3\xd8s\xdcc\xf5g\xefW\x93\xf2\xf9\xf5_Y\x1c\xd1\xabb(W\x10\xf2}:\x8eY#f\xb3Ol\xee\x8dc58y\xdc\x98;\x91\xcfg+\xf7\x0f\xe76(\xad/{C\xc2"\xd8\xe4c\xf14\x8a\x1c\xe3\xff\xe1H\xd5[M\x923_\xda\x07\xac\xa5\xff\xf3r\xfe?i\xdfy\x1c\xafT\xe6\x97a\xea]S\x81sd=\xe52\xc3q\x81@\x10B\x80\x94\x03\x07\x17\xb1\xb5pUPJ\xed\x87\xb0;k\x11\x8a\x80:\xc3\xa5\x11\xa5\xb1\xb6\x15\x90\x1aW\r\xbdC\x99U\xa9Z\xc3\xf0\xbb\xab1\xab\xcbiM\xaf\xea\xe9\x1a\xab\xedu\xedZ;o\x9d=\xdbt\xce\xde\xbd&gt;t\xf7\x17\xac\x1f\x9f\x1f\xf8\x90\xf0\xd3#\xcf\xd7\xeb\xf3\xfa\xbc_\xbc_\x1fL\xfa\xc3_\x9d\xe7\x8c\x7f\xa5\xd1M8\xf4$\xe9\x85\xeb\xd7\xcfn^:\x19\x0c~&lt;==\rw\x9f\x8b\xb2&gt;M\xde0od\\F\x83\x95a\xeey4\xe3{\x82\'N\xda\xfe\x8bA\xb3?p\xf9\x9a&gt;\xe7v]m]]\x8dE\x7f\xf8\xec_\x19k\xd2\x9eNG\x16\x89ts\xe9&amp;\xd4\xd3\xfe\xbe\xe0\xf2t0\x18D\x8bj\xa9L\xc1\xcd\xebV\xae\xe5\xd2&gt;\x85\xf5j\xee\xa1\x0b\xd2\xc0\xb3\xef\'\xff\x81\xcd\x90\xcd\xc0\xab\xb5\xfb\xf4\xc7\xb5@e\xd1\x93\xce\x96\xb6\x92\x9c\x15GH\xa4,\xfd\xf8\xb5\xc3\xce\xa5\xa5\x91\xb1\xb1\xe1\xe0\xbd\xbe~\xd0H\xffE#S^\xd6t\xe4\x10\x05r\x0b\xb0\xa0l\xbd\x8a\x0e_c!\xdc\x81[\x0fF\x07\xee\xd4\xd5\xf8\xe9\xd0\xad\x12\x9d\x05H\x85\xa8\xc2Q\x95s\xff\xfe\xda\xda\xda\xf8\xb5\xc5\xc5\xa5%x/\x82\xc6\x97\x14De^\x9e\xf4\x02\xe5\x8bR\xc0:\xcfG.\xafc8K\x89\x83j\xff\x04\xc5r\x91\xae\xd3\x9cR\r"r\x14{&lt;\xdf\xe5ltn\xf4\xac\xaf\xaf?_X]\x7f\xb0\xbe\xf0\xea2\xfd\xf6\x9aT.W\x8e\x9d\xa5~Q\x9a\xcd\xc9=\x04X\x0b\xd8\x8exf\xac\xde\xa8\xb1\xd0\xeb\xb3\xaeS[/0\x15\x9a!zu\xfe\xcc\xe9\x85\xd5\x95\x85\x07\xf3s\xf3\x03\xb7\xe6o\xcd\xcf-&lt;\xfd\xdap[\xafe1\xe5\xe7\xd3&gt;-\xe5\xe4\n\x04\\\xe4\xf4,\xb6X\xb8\xf9\x1b\xe0\x16=\xeb,y\xf8\x02\x8f\xc9\xcc\xd3,\xfa\xc3\xb5\x0b\x0b\x0b+(\xd6\x1ch~\xfe\xf1\xea\xb3\xc5%eH\xc9\xe4\x96\xa6A\x9f\x9f\xcb\x11\xf0\x91\r\xac\xe7\x9aGk\xc1-z}C\xd1\x97\x87)\x12I^k\xeb\xe2\xe2\xb5g\x1b\xebOV\x81\xed\xfb\x85\xf5\xe7\xcf\xefmnn\x8e\x04y&lt;\x1e\xe5\x10\x85\x9a\x8db1\xf8\xbaU\xcc\xc7t\xbf\x01\xb7\xect\x92\xe0j\x03\x8d\xa2\x1cku^C\x93|\xf3\x1e(zB?\xfb\x98\xc7\xa84*%\xfbC2\x87#\x14\n\xb9\xda\xcb\xb70\xc7\x9a\xab\x83 \xd2\xeb\xa5&lt;\x8d\x10\xb0\x9a\x11\xd2\xf88PA!]\x9e\x9e\xfc\xe7\xe4\xf2\xf4\xbdK}L\x1b\x85B\xa5\xcahW\xd1\x1d\x1f\x81\x90\xab\xdb8\xba\x0bke\xdc\t\xd3\xe9v;)\xbb\xadA\xa2\x18\xd36\x8bH\xe3\x87on\x02\xd8\xf2d\x14\xcb\xf6\xf1I\x1b\x85\nX\xe44\xa2\x00\xcc\x12\x08\xe0:\xc4\xfe\x19\x03\xdcJXE\xb7[\xab\xf8r\x91\\\xc9\xe2#Ng\xc3\xcd\xa5\xb3\xb0\xb8\xbf\x04\x8e}d;q\xc2f\xfb\x88JMK\xa3Ph\x1c\x81P\x80\xeeD\xdd\x19\xc0~\x90\x1fw\xbc\xd6\xaf\xb2\xdb\xedG\x04\x88T\xce\xe7K\x9d\x88\xf3\xa6t\xa9\x7fL\xd3\xda\x1d\x94\xd8l\xd3\xc7l6\n-\xedC*\x8fBd1\x14\x90Y\xc8g\x1b\xc7wa\xaf\x8c\xd5\xb0\xd9n\xb5V5 $\xbeF\xcb\xd7"\xd2\x06\xa9TS64t\xb9l8\x18&lt;y\x8cBI\x03\xf1xD.\x17\xf2\x8a\x8bt\x9e\xde\x11,\xdc\xdc\x8f~\xb3\x15\xb8DY\r|)\x9f\xa5\x85\xd3\x08\x1f\xdd\xabk\n\xf2l6[t\xca\x8c"Q2\xb4\\\x86\x94+\x15}v\xfa\xd9N`\xed\x9a\xad\x05\xbb\xc0\xaf\xac\xf2,\xad\x96\xab\x19c\xf4\xf7\x0b\xc74yeM\xdd!\x9b-\xed\x0cJE\x05,-_\xc0\x95JES7z\x9av\x04k\xb4\xf6G\xc8.\xab\xb5\xde\x95%*\xe0s\x19\xc2\xbe&gt;\xe3Ee\xd3pwwo\x1a\xb4\xb0\x7f\xa4R)\x14\x8a\x84\x85p\xf9Z\xa9h\xa2\xaeN\xb73X\xc7\xef\x84\xc3\x10\xc5b\xbb\xcbT.\xd2r\x85B\x85\x82i\x94\x84B\xbd\xcb6t`\x11\xa0h\x14\xa6\xbc9\xa0\xd5J\x0b\xca\xbb\xea\xa6\x9aw\x06\xeb\xe8\xd7\xe1\x9a\x19\xe02\xdb].\x87\x88+\xe4p\x14\x17\xfb\x82A\xde\xef\xaf.\x9fIC\xb1hd\x1aQ\xdeS\x8eh\x0bD\x135]\x15\xc8\xce`e&lt;\t\x87\xc33\x8d&gt;\xb3WEw\x95#\x0c\xa3\x00\xb2kzy\xf9\xea\xdf\'\xcf@u\xa0\xf2x\x12\x19\x83\xd5Y\x0e\xcb\xb1\x89\xae\xae\t\xa7vg\xb0p\xdf\x84g\xfc\xfe\xc6\xc6F\xb1\xd7L79\x10\x06w\xa4\xbf\xdf\x06X\x93\x93\xcb6\x9e\xa47\xd4\xa6\x94\xb3\x02\x96\t\x87\xc3a\xb1tU4k\x9bFw\x04\xebq\xd8\xeb\x9d\xf1\x8a\xc5\xe2\xfcFs\xbd\xa5\xbc\xb5\x95\x0fM\xe2\xf2\xd5\xe5^x\xb5u75\x95\xe5\xe9\x02\x16\x95\xcbe\xb2X,\xe5\x88\x94?4\xbf\x13\x0f\xb8\xe1V\xfd\xdeF\xafW\xacV\x1b\xf2\xc5^\x95e\xaa\'\xd0:\xdc\xa7\xec\x0e\x06C\xc1\xe1\xa6\xb2gM\xba@\xc0\x02\xdf\xbb\xea-t\x87\x88\xcf\xd7\xea\xb6\xef\xe2v\x06K\x8czehi\xc9\x17\x9b\xe9u\xa6\xae\x80\xa6\x0c=\xc6\xa0\xad\x1e\xea\xd1\xf5t\x9a\xbc\x10_t\xa1!BX\\~\xcf\xcb\x8eY\xcc\xb9pw\xff\x15\xf6\xfa\xd4j\xb1\x1a\x9d\x8c\xcf\x177B\x82M5;\x87t\xa0\x00 MMu\x01\xb6W\xe5W\xa9\xea\xcb\x11\x16C\xc0\x0f\xbcL|\x88\xf5\xd2&amp;\xe3\xf8\xf6\xdf\xc2f\xc0\x82\x18\x1aZ\xaa\x0f\x1a\xf2\x1b\x1b\xed\x96\x8a\n\x9d\xaeg\xcad\x9a\xea\xb4\xf8-3\x90t*\xb3JEw \\\xb9\x90\xc1\xef|I(\\\xc1\xd8.\xdcV\xeao\x01\xab]\xad\xf6x\x0c\xd5-\x07\x0fF\r\xb3\x98L\x13\x13]\x16\x0b]\xa5\x02(\xb8\x14Tf\xb3\xdd\x84\xb0\x84\n\x01`="\xb0\xb1\xb6\xeb\xee\xa3\xcc?\xf8\x7f\xc2\xf2T\x83]\xa7\x0e\xfe\xd9`\x80\xa0\xa9\xe8\xe0\x90\x172\x0e\xf5\xaf\xd1\xeb\xb3\xbaD,\xa5\xd1\xc8\x11H\'&gt; $\x15b\x9a\xf5\xb8\xa3\xdb\xe9\x99\xbf\xaa1\x17\xb7\xb7\x03V\xa4\x1aTRr\xeaTI\x0b\\\x94P\xc8\xd0t3\xa8\xd5&gt;\x9fX\xed\xab\xaf\xd0\x00\x95\x91\xc3(0\xb9\xf1\x89\xec-,\x8b\x04\xee\xf5\xa3\xd4\xcc_\xd6\xc0\x1d\xb1\x1d\x05\x8b\xa0T\xa0+W\xae\x94\x00a\xc4\x90\x0fPp1\xa8\x7f\xa2\x92\x11\xb3/2\x10\xd3\x0b|b\x12\x96Q\xc4\rt\x0c\xee\xcd|?\xac\xb2\x16\x17\x17\xb7\x7f\xf7\x06\xebJ\x94\x0c\xa0"\x11\x83\xc7\xa0\xf6\x18"\x1e\xb5\xd9\x85R\x11\x8b\x8cF\xc0\xaa\x07\xac\xc4\xc29\xec\xa2\x98\xf1\x9a\x90\xbcw\xdf\x9fP\xacJ\xe0B\xed\x8az\x15\xc5\x02\xb0j\x03\xa0E&lt;\xbez\x93S\xc3\x94\x10\x89E2\x19G\x80\xd0_\xe0cc\xd9\xdb+\xd8-\xb5\xb6\x1f%\xa7\xee\xfbd\xc6o\xad\xac|\xc3\xe5\x89\xfc?\x90Q\xb0\x92\xea\x88\xd8G7\x95\x07XLbQQ\x11\x91(\xe3\x08\x0bT\x83\xf8\x84\xf8\xc4\x8e\x8e\xa7X\xa5\xd7S\xf6\xb9\xe4\xf4\xbd\x9f|\xee\xb7W\xa2\x8ary&lt;\xd1S$\xe2\x81\xe0\xf9\xa0\xb6\x06*DH\xb3\x90\tN\xa1vq\xe4\x05\xde\xc1\xf8\x84\xb8\xd8B\xe0\xc2\xa4\xe7\xc7\x1dxHp\'\xa7\xa7f\xb6\xa8\xec99\x959Q.(\x14\xed&gt;\x9f\x15z!\xb8\xd7LM\xe9\x9aAZ\x96\xdc(\xcb\x96\x91\xc9d\xa2\xcc(D&gt;w\'\xc4\xc6\xc7\'\x15\x16vla\xf0\xb8&lt;\x0ew\xb7\xf0\x91{0=u\xdf\x15\x95\xbd2\x07\x04X\x1e\xb5\xba\xdd\x07\xebg\x87\xa3S\xa7\xd3\x945\xb5\xb5\xc9Y\x1a\x96B\xc1\xc9.\xa2\x11\x89d"\xd1(\x0c\xfc:%!...\x91\xcdf\x17&gt;\xbc\xf5\x96\xff\xf6\x00w`v\xeb\x87\xc4s\xeeA\xb0\xeb}\x9f\x15\xb0\xaa\x00\x0c\xec\xf2\xf9\xd0\xe7kt=\xba\xb2\xb6\xb6\xb6PH\xc9\x92\xcb\x85\xd0\x1f\x92\xd1m}t\x0e\x82\xd1\xf9"%.\x8e\x10\x17\x9f\x94\x98\xc4.\xec\xf8\xcf\xdc\xdb\x8b$.\xe3\xf8\xca\xb7lB!\xc1\xedNNNN\xcf\x8c\x14W\xe6T\xe9\xf5U9\x95\xed\xea\xf6b+\xdc\xfcXy(S\xa8W"Q\xca\x15\x0c\x81\x10e:\x86\xae\x9e\x8d\x0c\xbf;.\x81\x10\xf3NBl\x12\x88\x1d\xcb\xfev\xe5\xad\xecX\xe3p\x07\xe6\xb6\xb6!\xab\xceE\xcd\x02\xa5\x96\xa0XU\xfa,=\x841\x1aC\x04\x9d\xc8\x8bJ\xa2\x90k\xb8\\c\x11\x99F\xa1\xd1hd\x19\xa7\xf5\x83\x94\x84\x18\xfc;\xfb\xf1\x84\xd8\xdd\xe0\x17\x81\x90\xc8~\xf8\xef\xd1\x9f\x19K\x1c.c\xf6\xf56\x9b\x90r\xee\xbdt7\xde\xfd\x06+\xf97\xed\xa8[\xe3\xe3$\xe0*\xf6\x15\xdb\x1d\xcd\xf2\xd0\x97Q\x85\x94J\x96\x94\xc1\xc9&amp;B\xfb\x03\x071[8\xe3\xc6\xe3c\xf0\xf8\xfd1q\t\xf1\xbb\xe3\x93\xe2\xdeMIHd\xff\xb05\xfb3~\xe2\xc5e\x8c&gt;}\x98\x94\x18\x8bO9\xb7g\xcf\xe0\xa0\x1b\x8e\xc1\xf4\xe4\xe4\xf7\xf6B\x14\xab\xf4$P\x16\x94\xfbb\xab\xab \x8f)\xe1\xf5\x86x\x12&amp;\x8b\xcb\x92\x0b9\xd9\x7f\xa1\xa0?&amp;\x91\xb39\xba\xdf\xa5\x10b\xf6\xef\x7fw?&gt;\xe6\x17\t\xf1\xb1\xbb\xe3\xe3\xf6\xa4\xe0c\xff\xc7\xc9\xf5\x84\xc6q\xdd\xe1\x1d\xcd\xbcy\xf3ff;3,;\xd2vga`|\x08\x82\xb0\x8b\x84\xe4Ek\xcb)\xebEkV:H\xb06Y\xa9D\xad/\xf5A\x84$\x0e\x8d\xd9\x1eR\x02\x06\xd3\x05m\x9a\x1e\xac\xc3\xb6\xb4*\x98BK.&amp;\x88\x12R\xeaKUHK!\xa7\x1e\xdc\x9bu\x89\x0f9\x08\t\x94\xd4\xf4\xfb\xde(\xa1\xa5\xa4\xad\xfb\xb2\xbb\x16\xb2\xb5\xfb\xcd\xf7\xef\xf7\x1b\x93\xc4-n\x1e\xff\xf9\xff3\xd9\xd4\xd4\xb7\x1f\x1f?p]\xcb\x97\xc2\x0bF\xa30&lt;\xc0\x01WI\x92\xbc\x06\xba\x00k}\xa63\xbcu\xeb\xce\x9d\xb5\xce\xd6~\x13\xa7\xd1\xdd\xba~\xb9~\xf1\xd2\xc2\na\xd5*0\xfcO\x0f\x04~:\x08\xc0\x96T\xf0\x97\x93:FK\xfa\xae;\xbfy\xfc\xf8\xb9M\xa6\xff\xef&amp;O\xe6\xdd\xa2\xe5+\x94a,\x04\x8a4&lt;\x085\xacqR}\x97\xb0\xd6\xd7w\xfb7\xef\xdcF"\x87\xfd\xb9\xfdv\xbb\xb1Q\xef^G\n{+\xafhT\xdb;\x0b\xbfx1\x96"\x06\xac\xd8Ne\x04\x11\x9dT8R\x18\xa8}0F\xf7O=?Q\xa6\xe5 \xda\xbe\xc2;\xc7AX%\xae\x90"\x8e\x92\xd7~\x92\xc3\xda\xed\xdc][\xfb\xd1p\xd8Y\xbe\xdemlt\xeb\xf5\xee\xea\xe5\xed\xe9\xca\xec\xec\x85\x0b\xb3\x88\xe1\xdc\x8f\xc7B\xa6\x81\x87\x03\xdb+\xd3tU\x9a*K\xda\x86\xb2\xa0\xe4s\x01CE=;+\xba\xae\xef8\n\x0f)|\xc1\x0b\x0e\xab\xc0\xa5Q\x05\xf1(\xfc`m\xf8\xd1\xfa`w}\x1d51\x1c\xde\x1d\xde\xeco-uq\xf8\xef\x92U\xa6\x81\xeaB\xad\xb2\xd2\xfd\xd5\x8b#aCC\xcfK\rC\x11\x96\x03\xa3I\x13\xd9\x94\xc0\xc5&amp;{\xf2\xf8\x7f\xf1\x18*\xea\xf1\xd3M:\n\x03\xc3\xe1\x13)\xf2\xf0\xbeqR*U\xb3\x8cA$\xaeo\xdcZ\xeb\xf4\x07\x83\xc1\xfa\xcc\xf0\xe6\xf0n\xa7\xd3\x99\x19,\xd5\xbb\x8dF\xa3\xddhL\xd7p\xcb_\xa9l\xf7@\x96/R\xa02\x80\xca\x96\xca\x9c\x14\x952\x02\x8f:J\xbc7*c~s\xf3\xe9\x7f\xf5\xd8\xd4\x14\x1cEP\x96\x03X\x96\x92\xb6m\x18i+Mc\xa8\x08X\x9a\xb0$\x19\t\xef\xe0\x83;\xc3\x8fv\x07\x7f\xda\xedwn\x12\xd4\xf2\xf2\xd5\x8b\xdd\x8d\r\xa0B\x8f\x82\xaaY\x90u\xe9\xf7\'\xb1\xf04U\xb6!m\xe9D\xd2\xc4\x18JSa\xe3\xad\x1d\t5-\xb3\x88\x99\xf4\xf4?3\xf6\xc2\x87\xcf\xfe\xbe9_\x04\xbb./%\x92`&gt;\xb2!%D\xf4\x00\x8b\xc02&amp;\xd1\x13\xde7\x7f\xb9v\xb3\x0f\x15Y\x13\xfd\xe5\xe5\xe5\xc1\xd6\xc5:`m\xb4\x9b\xb0V\rlm/,\xdd@\x0cc\xfa\xca\x90\x86m\xdb\x8ec[-[\xda\xec0WEJF\x98\xe1(\x7f\x02\xfb\xe4k{l\xea\xa5O\xcf\x1e\xcc\x175W\x16\x9eR\xda\x8e\x90\x90\xd1n\xd1\xb3^\xb5\\\xa6\x8e\xa4+\x88\xe3\xf1\xbb\xb7\x86\x9d\xfe\xee`\xa6\xd3\x01\xaa\xc1\xfd\x97\xe7`\xf7n\xbb\x8d9\xc8\x82\xafTz\xf5WOb_\x18\x9e\x80\x80\x86\x11\xb1 \x94+\xc1\x92a\xb7l\xcb\xc5\xfc\xc6\xc319\x94\x00\xec\xf8k\n\xf6\xa5O\x9e&gt;\xd8\xd4\xa8\xe8)\xcbQ\x8a\x89v\x9cHx).9\xf0\xc2\xb2\xc6\xa5\xf9\xf2\x0c\xef{\xb7\xd6\x863\xfd\xfe2\xd8Z\xde\xda\xda\x02\xaa\x8d\x8d6NE\x9f\xed\xde\xc2\xd6\x8d\xb1P\x02\\\xa5\x10\xd0V\x11\x13d\xb6&amp;\x8e\x12\xb6\x91\xa2ZA\x97\x90\xbclZ\xbfX|\xf0\xf9_\xfe]\xca\xa9\xef&lt;;\xdb\xdc\x9cw-\xb6\x82\xa5\x1c\xc4PF\x00\x07wy\xe7\x07\x9e\'.\x12\x06\x15\x8d\xa3o\xb1\xe9\xfb}B[\xc6\x8a\x05_\xb5Q\xa99*,\x80\xf5\xd7OFB\xb6\xe0+\xb8J\xc2U\xb6\xb4\xa2\t=f\xcb\x16\xdc\xc1\x0b\x16\xa4\xd0aU\x902\x00\xfbW\xc6\xb0Ki\xaa\x8a\xaeo!\x1e0\xbc\x0f\xc6\x15@a\xc8\xa6\x80\x94\xa6\x10\xf2\x1cV\tyD\x9a\xe2+\xa0\xab\xa3\xad\xd5\xff\xeeR}\xb5\xa1A\xb5\xf5&gt;\x83\xfdou\xeb\xda8\x96\x86\x17\xe3\xa3#i\x83\xf8\xc9\x04\x15AXH\x12`A\x14)\x146\x0b\xcb4M\x88T\xd4{\xcf?\x03\x9b\xfa\xf0\xf33\xa0\x9a\xd7e\xc5j a:\x86)\xa3h\xb4&lt;m\xaf\xac\\.\x7f\xe5\xafX\x1c\xbd\xc7\xaa\xef\xf7;3\xfd\xc1\x16n\xa0wP\x0f\xd3\x8dK+\xd3\xd8\x96W6\xe6^?\x19\xc7\x10?\x15R\xd9\x92&gt;\x8a\x00\xcb\xf5\x0c;R\x11\xe8B\x0e\x1d\x85\xaf\xc1\x9a\xe9\xa2\xd0\x8aD6?O`_\xde\x93\xfe\xed\xc9\x83\xdcVt\xbb\xc3\'4\x87\xf26\xb4\xf2Z\xc2\x00\xe7\xec\xae\xa4\x0c\xba\xca\x8b@\x06\x83\xc1\xf5G\xb7\xf5d\xe4A=\xd4\x17VwVWwz\xbd\xde\xca\xf6vc\xe3\xfe\x8dl\x1ccD\xa7\xf0\xb7&gt;\xc0\xa1\xa4\x99\xda\xb4\x93\xa2\xb0x\x05\x8b\x91\x83&lt;\x9a\x1aWQ3\xb6\xf9\xf4\xdc\xea\xc7g9*\xb6\xa7\xe5\x83,ZQ\xd2\x99,g\xbc\xd0Y\x81\x97\xb2"\x00k\x91\xc0J\xf0\x97w\xed\xf6\x1d\xc0\xeak\\\xfcK\xe7z\xf7rwaa\x05\x1a6\xba\xaf\x9e\x1c\x8cP\xa5\x9e-\x040)\xd2\x82\xa7$,\xa5X=\x80i\xa1"ti\xeb\xc6\xcfa\xe1\xe4V\'U0;\xfc\x84\x076IP\xe5\x0b\xc8\xcf\'*\x06\x12z\xba!Z\xad\xec\x1c\x97f\x0c\xb8\xe2\xd3\xf7\xd6 !\x8f.\xae\xb9:v\x9a\x1eV\xc0f\xfb\xe5\xdfe0&lt;Z\xcb\x80}P\xa6\xd2\xe4\x1c\xb3\xd0\x15l\x85\x88\xf6r\xf2\xc8[\x0c#\xbery\xb4\xf5\xf9\xdf~\x1c\x9f\xbb\xca\xc7UQ\xe7`\x00\x00\x06\x0cIDAT\xe4\x83\x05\xe1\x04\x89\xadMH\x03\x1a*V\x0c\x1e^\xdabO\xb7\x92rV\xad\x02\xd9\xa2\xfe\xa7\x1a\xc6\xb18\xfd\xf8\xfb\xcb\x83w\xdez\xeb\x9d\xc1U\xf4i}a\xa7\xc7A\xdd\xdc\xff\xc3I\x16p\xfd\x93\xbaH%\xd8r\xd0\x10\x16\r\xcf\xb5\x8b7\x1d6v\x13\xda8\xe2~H\xef\xa0\xc2\xb4\x96\x85\x17\x1e?\xd1L\x91*\xec\nJ(_a\xbdB\x00Y\x81\xb1\x91\xfb\xdd\xc3\xf41\x08\xd0\x83\xdb\x81\xab\xacQ\x95\x81\x0bcH\xf8\xa7\xa7\xd0\xfd\xe1\xd5\xa5\xa5\xa5\xbf^Z\xe8A\xc2\xd9\x0b\xcd7\xae\x95\xc2\x18\xef\xd7j\xe1\xfad\x14!\x85\x11Q\xc0\xa5P4\xb7\x15M\xc5\xa1\x9b+\x89\xfc\x03\x97k\x82\xb2\xc2\xa7g\xdaT\n\x8e\x82\x82$\x89\xc4\x0b\xa4X\xf8R\xc6@\xd2\xd2\x96\x85EI\x9a\x97U\xc3\x9c/:l\x11\xd6\xcf\x12\xacR)&gt;\xf8\x87s\x17\xb1\xfe-\xf4v\xa6\xb7{\xb5\xc3\xfd\x87\xa5j\x82\x1b\x1e\xa1\xc9\xc7T\x06,`\x89\xcc\x96\xd4\xc5\x83\xae\x86\xb9lRDH\xfc\x16\x10\x9a\xb0\x18\xcco\x164(\x8b\xa0\x84p\xf8\xc21\xaaX\'X\x8f\xf0\x9e650\xd0\x86\xa0\xcd\xc6h\x0bJ\xbc\xc3\xd0\x0ec&amp;\x179\xbc\x0fF\x01~\xca\x87\xdd/]n4P\x0e;\xb5\xe6\xfd\xd3R6\x92\x13d\x87\xdd\xc0\x89\x81\xd1l\x9a\x91k8\xca\xcc7\x13(\xcb\xc9F\xbe\xa0.\xbei\xb20M\xc75\x8b\x05\xdd\n\x0e\xf4\xf3\x85\x0e ~e\x06\x81\x887\x05\x1a\x94\x1e\x1c|\x01_\xb6\xc7\xc1\x13f\xd9\x97\xc8\xbe\x9a\x91A\xf0\x06Zk\xa7\xdd\xc4\xaeU{s\xff\xe3\xf1(\xf3\x94\x9a@/4\r\xc7a\x04\xc6\xcc\x89\xc20\x84\xf3\xc1\x8f\x15\xe9!)\t\x0b\xdf\xd0\xee\x07[\x14\xd2*\x14\xb1-\xa0\xd2\x11=\x1e\xd0$\xc0&lt;\xcc\x08\xc7\xa3\xd7\x99l[\xa0\xa2\x01\xaa\xe5\xb1\xbd\x8c\xa4\x9a\x04I\x92\xe5\xc0\x88M[\x8d\xe0\xee5\x1a\x95\xf6\xf6\xec+\x95J\xed\xfd{\xe1\xd1(\x14\xca\x99\xf03\x1dl}\x965\x01\x00\xdc_\xd0\xf1t8V\x9a\xdc\xf42\xe7\xee|\xb9c\xe3[f\xc1\xd5E\xe5\x0bv\xa7\x10:\x8b8\x11i\x12\x9a\x7f\xa6\xc8\x80\x0f\x0cC\xd0\xf3FZ\x023 \x8c\x16\xabVs\x87\xd1c\xa1\xf7E\r\xb3\x87\x9b\xc3l\xf3\xb3\x83\xf1H\x84\x82\x9f\xc4j\xa7\xab1\x98A\x13\x02\x08T\x91V\x8e\x8b\r\x95\x81\xb9\xf0;\x80\x9c\xa3\x82\x86V\x81mA\xe14\x1e\x8d*&amp;.*\'\x04B\xc4\xdc\x00\x11[\x82\x9a\x82\xb00\x83`\x04\x96\x85\xd9\xde^5o\xd7j2\x0e~~x\x08X\x98\xd2\xcd\xfd?\x1e\x8cc3\xc1TE\'\xe1\xc2@\x0e\xf44\'\x8eS\xb4\xd9P\x1c;P\x8b\x1b\n`\x12\x8c\x9e-\xf8\xd3t&lt;\xee \n\x94\x99\x01\x14(,\x9cX\xc4)\x01\x1a\xb4;m\x8e\xb8\xe0\x17\x9bO*\x89\xf0\xa4\xd5\xc0\xcb\x81\x01\xd5^\x08\xc2\x1e\xed\xed\x11Z\xf6\xd9!o+fk\xed{\xe3\xf1\x91_\x0c\xd0\xe9&amp;\xf7[\xc4\x1fI\xd5\xb6/\xb6\xb8\xddH\xf2c\x9a\xec\x05 w\xce}o\xea\x1d\xda\xe2}M\x01\xc0}\xb2$l\x9f\xf2\x191+\x8b3_2\xdc\x9a,;O#\x1c\x06a\xf1\x8d$\xc4 \n\x92\x10\xdae\xe5R\x90\x94\x00\x0b\x8f\xbd\xf2\x95\xc3\xc3Z\xf3\xb0\xd9~\xfb\xc8=\xf2\xadb\x1c[\x14M\xea\xfbC\t\xc7\x98R\x15%\xdd&amp;9\x03\x1d\x13\x1eS\x9a\xbd\xbc\xb4\x90PS\xafU\xf0\x16\xc2k\x11\x95\xaf( P\x91/\xdc;\xa5\x0c\x9f\x16\x10`\xb8\xe5b\x11\x01\xbe\x08\x9f`d\xdc\x9f\xab\x90\x11\xcbs&amp;\xcd\xa0\xfc\xe8\xd1\xde"\xcb\xe2\xed\xdf\\\xa8\x1d\xfe\xfa\x8b\xa3\x0c7\xa7E7{\xb4\x97\t\xa5S\x880"\x84\xfc\x1b\x08j\xe6Jz\x08{\xbcT\xe7%\xe6\xe4\x19\xcc\xbb\x14Q,0~J\x97\x9e\xc8\x0fn%\x10F\xf6\xbd\xc8i\xb25s\x9c\xf7|\xe5\xfb \x87\xe5r\xa2\x95\x0c\x12\xcc\n#,\xeb`\x96\xaf\xbc_k\xee?&lt;=(\xc5,\xe7\xc5G8\x8b\xd9\x08\xb7\x04Q\xa4\xd8\x92XA\r\x88\x18\xd9l\x01\x88\x89\xe4G\xb6\xd2\xc8,G\x9d\x93\xc6S\x10\x96\xd0\t\xf4\xd1\xecB\xc5\xb4|l\xe8\xcb`\x1a\x95\x1e\x0c\xba \xd8\xc8\xfa\x0b\xc71\x98\xc5@hX\xc1\xa48o\x9a\x86\x17 \x99\xa5\xea\xcf\xde\xfc\xed\x0f\x90A\\Z&lt;J\xa0+\x81\x81\xb3\x91oM\xf4\xe2\xb2i\x82p\xd0\x97\x9b\x1c-\xab\x0b\x8d\x81\xf8G\xcf\xd5\xae\xa30\x0c\x04\x89\x9c\xf8\x11G\xb2\xad\xe8h\xa0@\xba\x92&gt;M&gt;\xe5~)\xc5\xb5)\xfc#\xf7c\xb473\x8b\x00!BB1\xde\x9d\x99\x9d\xa5ohA3\xdf\nS#\xac%&lt;l\xe6\x88R\x9cA\xb4\xe5\xc4\xa5\\\xa5b\xfbv\xf9)\xef&amp;\xbf\x97\xe21+\xd1\xcd\x84\xc9\x8a\r)\x83l\xb7\xdb\xf3\xef\xf9\x0bX\x8f\x03\xd7\xccd\xb0\xb4M\xd8\xb6:q\xc1\xf9\xe9L\x97\xa8\x13{\x16iN\xd1\xa4\x88\xaf\xc6-\x88\xda\xc5\\\x04\xe5\xdf\xdd3rM4\x03\xcb5\x81\xf6\x9c\x94\x0610\xac\x9d\xfc\x19\xf8i\xa5\x0c\xc4\x86!\xcej9\x16\x0c\xb8\xeak9\x8e\xa3\x02\xca\t\xcf\xb8\xf3\xb9y\xdc\xfa\xa5\x8cVwi\x8e\xe6\xe4lHGN\xba\x16\x8dc\x1f=^\x90\xad4\x9eU#^b\x16F\xb1I\xa7b\x91\x07\x12]\xe6\x80\x7f\xc1\x03\x81\xce\xfb\x92qC\xb8\x9c\xb6\x83\xde\xfbP\xd0\xad\xe9ZY\x9es\xc30\xc8\x83\xa2\xb2,9!v\xe1\xccP\xa4s\xce\xd8\x1d\xb5\xca\xf8\xc6\x93\xc2v\xc1\x16\xe6\tj\x11\xb0\xe6\xa01\r\xdf\n\xf2-\xb4\x8f!\x12/\xdfF\x04\x07\x06\xb6@^\x06q\x9f\x9a\x06\xc5\x86\x9c\x99\x0c\xd8\xc6Q\xb8\x9c\xeb\xbe\x1c\xd3r_A)\xd8\xd8ZK\x81\xca\x9bQ\xb9Q\x8a\xa0P\xe7\x02*\xd99-2\xb05\x9cs\xd6CaE\xa9\x1a\xd4x\x89\x18\\4wU+\xd1\xe1\x13U\x08\x1c^\x1a\x01"\xbe\xa9D\xa6\xca\xf0\xcer!_#\x8e\x8e&lt;\xbd\xc3\x82\x84\xab\xe7|\xfd\xdeN\xcb;\x15\xa8\n\xcf\xc0\xbe\xcc\xdc\xa4\xdc\x9b\xcd\x9f\x88L1\x8e\xd1\xe0\xf0\x96\xe3\xc0\xd1\xea&lt;\xce\xffp\xa1eM\xea\x12\n\xe7\x00\x00\x00\x00IEND\xaeB`\x82'</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67212962963</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>793051</v>
+        <v>794590</v>
       </c>
       <c r="B17" t="n">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thiago Carpini</t>
+          <t>Artur Jorge</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x03\x00\x00\x00\x0b\xdf\x81\xd0\x00\x00\x00\tpHYs\x00\x00\x0e\xc4\x00\x00\x0e\xc4\x01\x95+\x0e\x1b\x00\x00\x00&gt;tEXtComment\x00xr:d:DAEewil2SDw:3449,j:8128288569400757339,t:24013019A\xe4y\xae\x00\x00\x04\xeeiTXtXML:com.adobe.xmp\x00\x00\x00\x00\x00&lt;x:xmpmeta xmlns:x=\'adobe:ns:meta/\'&gt;\n        &lt;rdf:RDF xmlns:rdf=\'http://www.w3.org/1999/02/22-rdf-syntax-ns#\'&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:dc=\'http://purl.org/dc/elements/1.1/\'&gt;\n        &lt;dc:title&gt;\n        &lt;rdf:Alt&gt;\n        &lt;rdf:li xml:lang=\'x-default\'&gt;Elabora\xc3\xa7\xc3\xa3o de fotos - 1&lt;/rdf:li&gt;\n        &lt;/rdf:Alt&gt;\n        &lt;/dc:title&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:Attrib=\'http://ns.attribution.com/ads/1.0/\'&gt;\n        &lt;Attrib:Ads&gt;\n        &lt;rdf:Seq&gt;\n        &lt;rdf:li rdf:parseType=\'Resource\'&gt;\n        &lt;Attrib:Created&gt;2024-01-30&lt;/Attrib:Created&gt;\n        &lt;Attrib:ExtId&gt;a7171fb2-0707-483d-93f3-10bc642ccb84&lt;/Attrib:ExtId&gt;\n        &lt;Attrib:FbId&gt;525265914179580&lt;/Attrib:FbId&gt;\n        &lt;Attrib:TouchType&gt;2&lt;/Attrib:TouchType&gt;\n        &lt;/rdf:li&gt;\n        &lt;/rdf:Seq&gt;\n        &lt;/Attrib:Ads&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:pdf=\'http://ns.adobe.com/pdf/1.3/\'&gt;\n        &lt;pdf:Author&gt;Jo\xc3\xa3o Izzo&lt;/pdf:Author&gt;\n        &lt;/rdf:Description&gt;\n\n        &lt;rdf:Description rdf:about=\'\'\n        xmlns:xmp=\'http://ns.adobe.com/xap/1.0/\'&gt;\n        &lt;xmp:CreatorTool&gt;Canva&lt;/xmp:CreatorTool&gt;\n        &lt;/rdf:Description&gt;\n        \n        &lt;/rdf:RDF&gt;\n        &lt;/x:xmpmeta&gt;GCq\x02\x00\x00\x03\x00PLTE\xff\xff\xff +A\xff\xfe\xfe%0G%0F#,A ,B"-C$/E#.D\'2G\x1f(&gt;%.C(3J" \x1e\x1d&amp;;\x1a 0".D\x1e\x1c\x1a\x13\x19\'%$"\x10\x16#")?\xafrR\x80K.\xb2uU*%!\x15\x1c*\x1b#6\xb7{\\\xc3\x86k\x17\x14\x12 *@.(%\xbe\x80d\x17\x1e-\xba}_\x1b\x19\x16\xc8\x8dt.,)\xfd\xfd\xfd;50\xb5xYC=9d?,)(&amp;\xc5\x88n\x9eeG\xaapS2/,\x99dF,7L\xca\x8fv\xa5hG\x0f\x14\x1e\x99`A\xb0w[\xc7\x8bp\x95]@\x1f*@\x9fcB\xa2fG\x86T6530\xf9\xf9\xf9H0#\xc1\x82j\xactW\x91Y&lt;yH-\xc1\x82e\xacnN\xa0jK80,\xca\x92{\xa9kI\xa4jMj;"(!\x1c\x9e_=\xa4cB\x89M0\xa5nQ]=,\xbf~_\x83N1\x9bgM&gt;,#E*\x1b\x95aF\x8cV70&lt;Q\x91]&gt;\xf5\xf4\xf4\x8a\\C\xb4tX\xafpO\xf1\xef\xef\x8cZ=wC);74:&amp;\x1d\xbdx^\x12\x10\r4,(X0\x1b\xb9u\\*\x1a\x12\xb2nU\xa9lN\xafjJsJ4X8(%\x1d\x19jF3\x95dN]7#\xb6w_a;&amp;~O5\x82R8b6\x1e\xafjQq@\'HC?yL2\xbazY\xb4lMz]O&gt;:72\x1f\x14\x8aU&lt;iM&gt;ydZqF.\xbd|d\xcc\x96\x81oRE\x9aY8kB,!(;\xa3_=\x96Y9\x8bQ4!&amp;6@%\x15R8*O4%P0\x1f\xa9gN\x9akV\xadeF\x90_C\x0b\x0e\x16\xa8bH1$\x1c\x90ZC#/F_B4\x87_M\xa9a@NGC\x84V=\xa3rVP,\x18\xaalX\xb6pR8DY"\x18\x13~T=qM;\xa3p]\xa9w\\\xba\x83l\x84XB\xaeyc\xa1dM\x81H5\xa0^F\xb9tV_G=yXG;!\x14\xe6\xe2\xe2\x1e$2\x8f`J\xa0jR\x99ZB\xeb\xea\xea\x9bbK\x80E+C6/\x9fZ:xN7\x06\x08\x0c\xbc\x86vQMJ\xb6uSrZOyR&lt;\xb2\x7fdK=5\xc4\x85p\xb3m]V&gt;3\x90Q4\xdf\xdd\xde]VS\xd8\xd6\xd6\xcd\x9b\x89[(\x19\xd2\xcf\xd0\xce\xc8\xc7\xbc\xb0\xac\xc6\x88v\x90F9\x95R&lt;\x94V3~ja\xb1eI\xb6xh\xc3\xc5\xcb\xbb\xb9\xbb\xac\xa2\x9f\xacYRk3 hb_\xc5\xbf\xbd\x7fwtV_q\',;\x96\x8f\x8e\xa0\x99\x96\x8c\x83\x80u9&amp;\xad\xad\xb0fn|\xaa\x90\x89\xa5\xa3\xa6M"\x13\x91hV\xd0\xb2\xaa\x8epe\xac\x80tt{\x89\xa4QD  )42&gt;smj\xa0xjCPc\x88\x8d\x99iTKMTa\x93\x98\xa3\xdf\xc9\xc4w3\x92\xd8\x00\x00 \x00IDATx\xda\xc4\x98\xffK\x1by\x1a\xc7K\xfe\x80\xf9a\x18\xd0\x0e4aB&amp;\x93q\x9c\xd8)\x16\x9b\x92:\x89lu\'z\xd1\xad\xa9i\xa59Mo\xd4\xa1\xb6\xd6h\xab\xb2\xc4\xc8\xf4\x16\xebm\xa9\x0b\xba=\xf7.\xa5mv9\x89]z{\xe0\x1e\xa1K\x8e\\\x8fHk\xf1\x8c\xa5\xedB\xb9\xbb\x16\xa2\xa0R\xf0g\x7f\xbc\xf7\'\xde\x7fp\x89;:_\x82?\xf8\xe2\xfd~\x9e\xf7\xf3L\x8e\x1c\xf9\x7f\x0fK$\x9b\x89F|.\x9f/\x82\x1bN\x97\xcf\xe5\xb2\x1c\xf9%\x0f\x8b\xc5\xe2\xca\xec\xedl\xef\xed}\xdc\xdd\xdd\xda\xdf\xda\xda\xdd\xddy\xfbz\x1dh`\xb3\x90?\xff\x12P\xae\x88/\xf3q_RM\xd104\x8e\x95\rC\xd4%I*\xec\xef\xbcY_\xcff#\x11\x9f\xcfr\xf8P\xbe\xd7\x9b\xdb\x05]\xe4p\x98\xbaB\xd14\xab\x89\xa2\xc0q\x8a\xa8\xa7\n\x85\xad\xed\x0fo6\xa2\x87\x8de\x89f\xb7\x8b\x1288NR%IP\x14A\x909\x81\xd3\x15\x85eYN\xc4\x91\xda\xdf\xccd}\xaeC-\xa9\xecvA\x8c\xe3\x7f\x1b\x86\xc0\x80\x84\x93e\x8a\xa2\x18\x8a\x15(\x86\xc6\x13\xcdp\xaa\xa9K[\xef3Q\xdf\xa1\xd9\xe7\xca~(\xa6\xa4\xb8\xa4\xc5%8\xa8\x08*\x03\xa9\xc0Ub#\x17F\x96e\x06?bag#zH\x15\xe6\xf3E\xb7r\x10J\x87y\x8a\xa9\xb1A\x8ecdA\xa1)\x06B\xd14\xae\xe4\x91a@\x07\x87\xb7\xded#\xbeC\xe9\xbf\xe8\xee\xaa\xa8\x9b\x9ah\xc6M]TY\x8e\xe5\xa0\x95B\xc94_\x82\xe2y\x9ef\xc0\x07\x05\x19\x86\xd5\n\x1f_g#\x15\xd7\xcb\x17\xdd,\xa6r&amp;)+I\xd4L%HP\x14YWU\xf0\xa0\xb0l\x03\x84\x89\x92U]U\x88btp\xf5C\xa6\xe2X\x96\xf5\xedx\x0e\x16r\xaaf\xa0\xf9(\x1e\x86\xa1\x94t\t\x0c\xa8\'\xdaf#r1\x8a\xaa\x03TahF`\xd8\xd4N\xa6\xc2\xfdh\xf1mK\x9a\xa1\x99\x02\xa5\xb1,#S6\x9a\xa6q\xaa*\xa9|\x81\xa2\x89^\xb4\x8dQLIE\'*\xaa\x8c\xa2S8iw=RQ0\xdf&amp;\x9c\x93D\x89\xa3\x05\x1eY@\xd9x\xc66\xc0\x93\x06\xe48\x96%\x11\x81\xa2\xe2q7\xf3y\xc8\xa5\x12V\x963\xa4\xad\xcdH\xe5\x06\xa5\xc5\x12\xddRDSQ$\x96t\x1d\x05\xcbx\xdb\x1flp\x92\xe6\xf1\xc4\xf32iC\x1b\x8d\xc2\x12\x04!\x9e\x8a\xab\nR\x82\x8f\xb1\\\xeaC\xa6rX.\xdfF^\x14%JV\x18b\x16\xcd\x0f\xd8l6\x9c\xfc@\xe9\x027!\x9aL!\xed\x15X\xa8\xabfJ\xd2eT\x1f\xc5\x19\x85\xcd\xca\x95\xbd+\xba\'+\x9a\x8e\xe9\x87\xf2\xe6\xa1\x10p\x06\xfe\x010r\xc7\t\xfd`\'O\x05\x05=\x9e\xcf\xe7\xe3\xd0K\x97T\xd2\x16\x9c\xb1\xbf\x11\xa9\xd8\x1c|S\x94M\x8eexT\x91\x80\x94\x02\xcb\x81`\xff;x\xdeFq\x0c\xcb*\x80*\xe4\xf3)S\x901\x9aD\x92\xb4\x82\xf8\xa1RXG6\x8a\xa6n\xaa\x14\xfaO@VQ\xc8\xcd\x01\x14T\x89(\r\xb1H\xa9\xc5P\xe1\x8a(b^\x07\x05A\xd5\xe3\xb0\x9bBn\xd0\x8cV\xccT\xc8E\xdf\x86\xa4\xa3\xebQW\xbc\xc0\xd0\x82*\xa3\xba\xd2\xb14\xe4\xb2\xc5\xfa\xc8\x8dO\x834\x16\x0c\xc68\x85\x0b\xb2$\xc8d\x92\xf4\x14\xb1QH\xbd\xf7U(\xb3\xf6\xe2\xaa\xa8\xc0\x10E\x96Y\x8a\xc6\x02\x03\x82\xc1`\x1aGr.\x96\x8e\xc5\xd2i[:=\x18C\xe7):\xacT5Q\x15\x04\x05qF\xdbX\xd6\xd8\xa9\x0c\x96k=\xaf\xca\x06o\xa31\x981_bA\x96\xe3\x82\xc9p\xb8\xaf\xaf\xefV\xd2\x8fk\xb8o0\x99\xc4\xc7d2\xa9\x19\x86\x1e\xd7\r\x92dH\x12F\xc6\x19,d|\x95\txU\xd0Y:\xc8\x90\x94\x82UIMJ\xad\xadu\x8e\x8c\xd4\x0e\x0f\xcf\xcf\xcd\xaf=\xf8qn\xce\xff\xe0\xaf\x0f\x97F\x86\xfd\xfep\xd80L\x8d\x0b\xc6\x10\x1a6\xd4"E\xb1\xda\xc7J`\xb92\x05\x96\x15\r\xec|\x18z\xe9\xd8\xad\xbe\xb0\x7f\xed\xc7\xc7K\x17?m\xab\xbb?\xf1\xec\xd9\xf5??|8\xfat\xb4k\xb4\xeb\xbb\xdf\x8f\xde\xff\xf5\xd2\x9d\xaf\x01\xc6\x05q\x90\xa5\x02\xc9\xc1j\xdb\x95\xc0\x8a|4\xb5`J\xd1\x821&gt;\x96\x1e\x0c\xfb\xe7\xc7\xa6\'\x1a/\x9e\xb9Vu\xf4\xe8\xd5\xde\xe3\xd7\x8e\x9f\xfb\xee\x87\x17/\x9e&lt;yq\xea\xe6\xcd\x17\xa7\xce\xb5\xfd4\xfa|\xd8\x9f\xe3b|i\x16 \xceX\xb3\x90-\x7f/\xfa\xb2EUP%3HR\xa0\xcf?\\;\xd9}\xda\xdb\xd1\xfay\xd5\xe2\xca1\x87#q\xccnor[\xddn\xab\xb5\xc9n\xafq4\xdb\x1d5\xc7\xbb\x9e\xd7\xfa\x93\xb4\xadD\xc5\xd3\xac\xa8\xbf/?\x96kO74\x94\x0b=00x\xe1\xeb\xb1\xb3\x13\xdd\xb3\xed\x1d\'\x87zWj\x12\x0e\x87=\x04(\x8f\xc7\xe9q\x97\xd0\x9a\xfb\xfbC\xf6\xc4\xb1\xe3\xe7.N\xcc\xdf\n\xc6\x06J\x03\x8a\n\x8a\xbb\xe5_#\xa2\xfb\xaa\xa2r\x1a3`K_\xb8\xf1\xab\xc9\xeeOf\xbf\xf4v,,\x0c-&amp;\x12\xa1\x90\xbd\xb9\xc9\xed\xf68\xf1\xebq:\xeb\x9dN\xa7;\xd4\x1cJ\xd4T]\xf3^\x1e\xebK"\xcd\x00\xc63\xe2V\xd9\x8b\xcb\xb2!\xb1\xaa@\x196~\xf0B\xe7o\xcew\xcf\xce\xb6\xb7\xb7\xffqah*\xe1\x085[\xad\xcdn\x08\x05\x1a@\xd5\xd7\x07\x02\xf5\x017\xb0\x1255U\x9f~[\xeb\xefK\x93v\xa4\x14\xbd\x90-\xbb\x87\xbbFP\xc1\x06\x1a\x1b\xf4wNW7~2{\xba\x1d\x1e.L-\'\xecV`\xb9\xadNxX\x0f(g}`&amp;\x10pZ\tVU\xd5\xd1\x96\xb6Kw.\x84Y\xb2\x83\xe9j~\xbd\xdc\xc5\x15-\xb0$\xb0\x11\x9fs\x9d\xd7\xab\xbb\xdf\x11\xb5\xee&gt;\x1a\x9a\x9aZ\xb6\xbb\x81e%\xfe\xd5{\x0e\xa4\x02\x96\xc7\x13\n\x85\x12+\xbd\xbd-\xd7\xda\xbeYz\x90S\x10\xac\xaa\x98z]v\xac\xa2\xa6\x08q\xd1\xd0\xfc\xf3\xb5\x93\xe3_\xa1\xb2\x08\xd6\xc2\xd4\xe2r\xa8\xb9\x99xH\xdc#j\x05\x08Y\xc0CL\\\xe9]\xecmim;\xf1\xed\x179\x83Ue\xc9\x94\xca\xde\x8a\x99\x82*H\xa6\xae\xe5H4\x8c7\xa2\xb6\xbc\xed\x1d\xc0Z^\t\xd9\x01\x06\xae\xfaz\x0f\xe2\x01X\xb0\x11\x1e6\xa3\x17Wz\x87ZN\xd6\x9d\x98\x18Y\xc5\xe2\xafhj\xea\xed\x91\xb2c\xe9:\'\xeabnu\xbe\xf6luc\xf7\xbb/\xff~\x17j\xfd\x0b\x8d\xe8@#\x86\xacn\x92\x0e$#\x88b\xa4\xb4`bb\xaa\xb7\xf5\xe4\x89K\x13\x9d\xab\x1aKa\xcf\x89\xbf-\xbb\x89yEU`\xc3j\xceO\xb0&gt;#X\x8f\x1e\xa1\xb8V\x96\xedHR\xab\x95\xd4\x95\xd3c%\xbd\xe8\x81\x85\xf6P\xc8\x01\xb9\x86Z\xcf\\j|\xd6\x993\xf0\x82\xab\xaaR\xd9\xb12y]\x90\xa4xj\x15\xb55]]\xfd\xd9;"\xd6\xdd\xa1\xa1\xc5\xc5\x84\xbd\xd9NhHq\x01\x0b\x8ay\x10\x18v\xfbA\xcd\xb7\x9e&lt;=~\xbd3\xac\xc9,\xde%\xe3\x9b\xe5\xc6ZO\x91o\xd4R\xd2\xea\xdcp\xed\xf4\xd9j\xa2V\xc9\xc5\xa9\xa9\x95c\x08.\xf7\x81wd\xf6\x94&amp;\x90\xb5\xe4\xe1r\tk\xb2v-\xcc\n1\xc1\x94\xf2\x1b\xe5N\xd3LQ7\xc5\xb8\x04\xb5\xe6j\xef\x10\xac\x03\x17\x91\xf2=5v$\x04I\xf7z\x8c\x1d\x92a\x88V&lt;8\x12++0\xd1\xdb0\xd99o\xb0x]T\xa5\xf2\xc7id_\x14\xc9\xabL.&lt;\x7f\x03X\xff|w\x10\x10CS\xcb\xcbW\xfa\x01s`^s\xbf\x95$*iI\x0c\xeb\xe5\x92Z\xed\xe37\xfc\xe1$Y\x1a+\x81\xb5%\x01+\x1f\xcf\x85\xfdc\xd3g\xcf\x7f\x05\xac\xbb\x1d\x0b\x98\xd4\xcb\xfd%\x0f\x11\x0b\xb0\x10\xf7\x99\x19\xa4)\xd0\xacv{\xc9\xc4\x8e\xf6\xee1\x7f\x18{*\xc3j\xfbe\x7f\xf9qm\x8b)\xbc\xf6IPk\xec\xfa\xe4y\x04D;\xb6\x9a\xa3==\x84\xca\x19 ,d\xfc\x04f^\xcd\xbcz\xf5j\x06\xe9\xe5nB\'V\xb5vxO\xdf)a\xd1,\xb7_\xf6Q\xed\xda\x11\xe3\xf1\xbc\xb4\xba\x1a\x9e\xbf3\t\xac\xd9v\xef\xc9\xcf{z\xae\xdc\xec\xc7J\x03\x98WP\xa9\x9eHE\xa8\x80\xe5\xfc\xf9\xa5\xdd\xeeHT\xb5\x9e\xf464\x0e\xf7\xf5\x05\xb9\x18k\x14\xa3\xe5_\xb7\xa4\xb8\x84\xe2\xca\x85\xe7F&amp;\xc7\xcfc\x05\xac\xfb\xcb\xbd\xab7\xaf\\\xb9\xe2hjr\x06J2\x1d\xd0\x11\xc0\x80\xf3\xe5\xcb\'O\x1c5\xc7\xaaZ\xcfx\xbd\x97F\xfcI\x96\xa59\xb6\x02X\xef\x81\x157\xa5\xdc\xea\x83\xc7\x93\xcf\xc6/\x9fn\xa8\xfb[\xdd\xbd\x9e\xabW{\xfa\xfb\x9b^:\x7f&amp;\x8a\x05\xb0;8\x9d\x81\x00\x90\xfe}\xf3\xc9\xa9\x1f\xfet\xedxKK\xdb\x19o\xc3\xb7\x9da\xec\xf4,W,\xff\xd6\xfc&amp;nB,3\xb7\xf6\xc5\xe3\xeb\xcf&amp;~{\xe9\xf2\xfdo\xf0B\xd1\xd5\xd5v\xf4\xaa\xe3vSS\x93\x950\x05\x9cM\xb7o\x9f\xfait\xf4\xe9\xd3\xd1\xef\xbf\xef\xeaj\xa8\xbb\xd7V\xe7\xf56,\xf9\xd1\x89A\xaeX\xf6\xafG,\xff\x89k)I\x02\xd5\xef\x1e?~\xbe4&gt;\xfd_Z\xed\xf6\'\xad,\x8f\x03x\xe2\x1f\xb0o\xc1&amp;\x9a@Xw4DYR\xa3%j\xb6&lt;\x88(\n\xa8\xe0`\x1c\xae\x95\xf4Fo\xaf\xa0"\x82\xd7 \xcc \xb0@\x80\xec\x8c&lt;\x84\x12\xa1&gt;\x90\n\xcac\xe9\x06\x19(\xc6\x8eV\xad;-\xdbq\xda\xb2\x9b\x8d\xe9&amp;;c\xd2\xb5S\xb3\xc9\x9a4\xd9=t\xfe\x85\xdb\xc3;^}\xf2;\xe7\x9e\xf3\xfb\x9e{\xcd\xe6\xdd\xc8\xc0\xca\xca\x8c]\x9brC\x14\n\x85\xd9x\xfd\xe8\x88\xd9\xa9f\xe5\xb53S\x03\x03\x03\x91\xe0;\x8f\xca\'\xcd\'\xba\xe8Mt\xdf\xca\xdd\xe9k\xd7H?\xe3\x7f\r\xf1\xe6\xdex}}\xfd\xe1\x03\xab\xf5\xc0\x9aQR\xa9\xd4\x99\x99\x81\x9b\x8f\x86&gt;\xbf9\xcbq\xa5h\x10\x86\x80\x8252\xd5\xac\x84\xcc&gt;P\xc9\x8dK\x99\xa0L\x95\x952\x18*\t\xbdE\xba94\xdd\xf7\x9bk\x9f W?\xbbW\xcf\xe3\xf1\x0e?X\xadVC\xc4&gt;75gWFf@U\x96\x97\xa9\x1d\x8c\x04m\x14#\x1f5\xd6\x92[\xfb\xf3\x01\xedjL&amp;\x93\xa9T\xaa\x1d0\xa4l\x9f\x8aN\xa7\xfb\xbe\x9e\x9e\xfem\xdfO\xb8_\xbdU\xfd\xe5\xfb\xfa\xf1/\xeb\x1f\xecg2\x06\x03unN\xb9\xea\xf3I\xd6\xb6\xb6\xd6|\x9c\x05\r;E\xe3\x12\x10p\x021[i\xcdm\xfc\x9d\x00\x9b\x0eV\x9d\x84\xc6b\xf5\xf3\xd9\x1dR\x89\x84.]\xea\x9b\x9e\xbe\xf6\xd3\'H&gt;\x8f\xeby\xf5\x8f&gt;\xec[\xf7MV\xaa]\xa7\x1di\xa2Kvv\xd6\xc0\x18!\x12\x19\xcd\x84\x06r\xe3Q]-e\x94\xcb\xf2\x18\x8dlI\xf4\xaa\xbf\x8b&gt;\xc2\xa7\xf57u\x8c\x81r\xa92w\xa7\xa7\xc7_\xe0\xcf\xfa\xf6\xbf\xbc/y\x80\x951\x98\x96\xec\x1cmG\x87Fc\x94z\xa2\x9e\xac\x91.%\xba\x04\x8a\x06J-8q\x16\xab\xb7\xd6\x02DN2\xe0\xb9\xf2\xe4G\x86\x0b\x8c.~\xde(\xa5wI\x82C\xd3\xf7I/&gt;A|\xfd\x99W?~h0X\xc1\x1c\xda\xcd:\xbb]\xb7*Sy\xde\xbf\x8b\xc5b\xc6\x0e\xce+ax\xb0\x16\x1c\xd5\x9d\x84~)G.\xa7.\x0f\xdd\\Y\xcd\x8f\x89\xe5\x8c\xae.\x89\x14\xd4\xf5\xdda\xdf4\xe9\xcd\'\xb8x\xfb\xd78\x8f\xf4\x91e\xb5+\x95\x03\xb33\xca\x81\xdbwx\x8f\xa6Vc\x9b\x9bb9Q\xa0Xd\xde\xe8\x1c\x1c\xe5\xef\xb8\xc4\xc4\xc8\xed\xfb\xf7\xee\xdd9\xa4j\x8c#-\xed\xfc\xfe.0\xdf\xaa\x07}}\xbc\x7f&lt;\xc3?\xbf\xfe{\x9cD:4\x192\x86\x88Rc\x9e\x9d\x9a\xbay\xd8w\xff\xf1\xe3\xef\xb3\xf2\x80J\xd7\xcby\x15\nS:\xe1ts\xf3\x16\xdd\x98\x8c&gt;\xfd\xea\xce\xed\x87\xff4\xac\xcb\xd9|.\x8d\xd6\xdf\xd5"QYIw\x9f\x06$\xbf\xe0\\\xaf\xaa\xaa\xbf\xff\x8eD\xba\x07X\x19\xe5\xee\xe6\xc1\xdc\xe7\x7f\x9a\xd8\x1f\xfa\xea\xceC\xd3\xb1\xe7\xdce&lt;[p\t\xf5\x14J\xb8,t\xb0\x02\x9e\\";\xbb|\xf1\xe0\xd2\xa3]\x10\xd9z\xb8\xac\xc9\xa6\x96&amp;If\xfcvG*\x11\xc5\xf9}\xec\xad7?\xfc\x9eDzPa\xedj5\xe6\x89esr527\xf3\xee*\x1e\x95\x8a\x9a8\x0b\x05[\x08\xb2\x84C\x8e\x9a\'\xad\xf1h4\xbauu\x15\x8d\xe6s\xc3M\xce\x16\x02\x8b\xd0\xdc\xd6$1\xd4\x0f\xf07\\/\xff\x87+\xeb\x0fo\x95S\xb7\xc7I\x1f\x00kW\xa7\xe3\xf4\xce\xcd\xecj\x8c\x81\xbc\'\n\x0c\x9e\xb55\xddy\xe1$\x84\xa9\xc3\xde"m{;\x9a\xdf\x01\x7f\xc7\xe3\xf1V~?\x81\xd0&amp;\xec\x01\xddMB\x12&lt;\x94\xd1\x12?\xfe\x88\xeb,V}\xfb^i\xff\xe6.o\x1f\xb04\x1a\rGwp\x10\x93&amp;\xfaY\xac\xe8\x8eT\xe5\xf1\xc8\xe4\x85\x82\xa8\x88AaEQXs\xb9\xb5\x93\xcf\xf1Y\xf1\xd6V\x16\xa1\xb5\x9a@\xe8\xe1r{\x9a\x9b\xf2\xc1C\xc9Z\n\xf9\x0f\xbe\xacgs%\xfb\xdcP\xbd\t\xb0\xb4\xab\x1d\x1d\xb2\xd8f%Y\x0br\x0c\t\x981\x8f\xb8\x00X6\x07\x1a\xf6\x82\x8c\xf6\xe4\x12\x14jk\x83F\x83\xaa[\x1b\xa0\x86j\xee(\xb7\xb9\x8dN\x0f&gt;\xdd\xd9q\x1f\xa1\xf8\xb2^\x94.\xa8\xd4\x9b&lt;\x93\xc9\x04X&gt;\xdfX6\xeb\x93\xd2[\xda\'Y\xf1\xcb\xcb\xb8\x8f(\x02\xe3\xa5?\xac/\xfb\x1d\xde\xf4\xf6\xde\xf6\xf6\xde\xde\xdev-\xb9\xa6\xa1\x1a\x94\x8b;\xc9m\xa7K\x01\xcb\xed?Bp][U\x7f=/\xadP\xa7\x1e\x99^\x1b2\x9b\xb2\xacL\xe6\xa3\xf3\xdb\'G\x1b\xd4O\xb6\x9f\xc4\x13\'"\x91\xab\xc2\xd2\xeb\xbd^a\xa8\x8c\x00\x12`\x81\x8e\xb0\xd3B\xa9\xa9\xa6q\'A+(\r.\xf5\x8fVX\xf8\xc6\xc4\xe4\xd9\xd2,\xf5\x1b\xc02\x1c\xc4dY\x1f\xbd\xbd\xbd\x99\x0b\xb5B\xdb\xf1\xd6f\xdb\xc9\x89\xab\xc2\xf2\xea\xd3z\xc0\xf2\xa6\x11\xf2v\xa5^ \xf43)\x14hr\x12t\x82\xa0Z\x19\xfew\xdec\xf8\xcf\xf8.\xf9\xc0yd\x82\xfa\xb5\xe9\xb5\xe9c\xb9F\x9a\xda{F\x15\x84\x06\x08\xc2\xdc\x8e"\xa8\x96X\xecJa\x88\x05\xd6\xfb\x85^=\xcc\xb4l\xd7\xee\xd55V\x82#\x19\x1au\x83\xb6\x19\xb0\xb2\xeeA\x8a\x7f\x0f\xdf\xfe\xf4\x96\xaa\xa0\x9c\x9f]\xfe\xf0\x91\xa5\xd52rnL\xaf\xc0P\xf0\xf3\x87@\xb5\xc4D\x17\xdb\x8f\xc1\x9d04\xe9\x16.Z\xc8\xb5G\x15\x19\xb3\x91iA\xc2\\?\x08?t_P\x82\x0c6\xa2\xdd8\xef\xa6\x9e\xa4y~}}\xa9\xc2\x02;\xd6\xb0\xcd\xa1\xd0\xeb\xdd(\x84b\x8aP\xd1\xe6"\x8a\xd99?\n[\xc8\x08\xe6\xf6/\x82\xce\x9e\t\x1ah\x0b\x93\x8c i\x85\xd0)\x10\xb4\x8c\xc8\x82Q\x98\xd9m\xc1\xf9\xf0\xf9\xe2*\xb9p\xb6\xfe\xd0j\x02kkW\xa3\x159\x8b^\x0c\xa4\x1e\x04B\x15\n\xbf\xd3\x9542R\x95\xb6\x99\t\xa3\x98\x1b\xea\x04!\x11\x8c\x8a\x0e\xb0\x1c/\x9dmN\x86,\x18?j\xacS\xff\x82s[s\x99\x94\x9f\x95.\xac\xafM\xfb\xe0\xa4\x06,\xa17\x8c"0\x0c!H\xb8\xb9\xc3\x18`\x07R\x18\xf3\xf4\xf9\x1f-(\x8ab\x08\\wz\x1d\x84\xb4\xd3S\x0b\x9c\x1e\xf5\x17\x85\xedN\xf6Xp\xaf\x1b\x1e\x84pfU\xbdM\x16\x00k\xe9#K\xa71\xe6\xfc\x8a0\x16F\x00\x0cA\x87\x93\xb9D\xce\x98\xab\xb0\x9e3Q\x14AQ=|\n"\xec\xf5\xeb\xa7\x8d\x83i}\xc8\xe1\x10:\xd9\xa0Z\x962\x8c;\xeb\x87d\xf2\xbcT\xfa\x95\xa5\xdcd\xa7\xfc\xfep\x1a\x86+\xaa&amp;y2\xe5N\x18\x93)5\xc8\x88\xa8\xff\x18\x810\xa8\x8cT\\\xdd\xa77n a\x85\xd0&amp;p\x0e\xcb\x82j}(\x8d\xe1\xcdz\xb1\x9b&lt;+\xcd\xceTX\x91\xc8*[\xe0/\xeb\xc3\x88\xc5bA&amp;]g\xf2\x97\xb9\\\xb2W\xe4&gt;\xc6\xb0\\\xc0\x8fB~\xc8[\x86OO\xbb\xbb\xeb\x1a\x990hv\x04\x1fY\x1b~\x05\xe4\xc7\xb7\x81\x00\xfb\xe9Ar\xfe\xe2b\x00\xb0\x96"\x99\x18\xa8V\xe5J\x1e\xa8P\xa1\xabtVH\x96\x1e&gt;\x9cO\xbe\xcc\x19\x17J\xa5B*e!\x14\xcb\x08\xf3:(V\xe7\xa0\x1e\xb0\xda*\xac\x9cp\xc3\x8d;\xeb\x8b\xe0\xc2B\xe9b\xb9\xc2Z2\xac\x0e\x17\x85\xder\x19\xb6X \xa1@tV:\x9b(M\xac_\x94z\xe5I-x2\n\xeeN\xb2\xa0X\xb6X\xea\x1a\xc9\x83\x16}e\x12[\xd8\xb1`C\xa7zc\x03\xef\xd7\x18\x9f]\x9d\xd9g&amp;.\xf6\x7fe\xb9l\x8ePY\x9fV\xa3\xa9\xa2\xc0)\xee\xed\x95\xf7N\xf4\xf6.p\x92\xc6@\xc0\xe8t/\x0e6@\'E\xcc\xc2\xace\x92a\xb0\xb6Z\x04-\xc3\xb2l\xed\x8d\xed\xcbK\xbc?\x16\xacz+\x8f\x1c,L,\xbd\x06\xac\xcc\xa6\xc8V\x0cy\xcb\x18f\xb3\t\x1d6\xa7\xabCg\xee\xd5h\x03\x8c@^\x120\xb2\xdd\xe8"L\xe6\x8b\x1c(L\x1e\x84\xc11\xd9\x06\xb6\xd3\xb1X\xb6\xa6\x96\xac\xde\xc3\xfb\x12\xa2\xeaE\xc6\xb0i\x9e[\x01,k\xe6\x80\xf8\xca\xe6px\xdd\'\xb6f\x81\xf3D\xa4\xd9\xd5\x98\x89\xc6\\bC\x9a\xd8\xc9\x06\x02\xf9Du\x03\x85\x92\x13\t!\n\x9c\x0e+\x1c@\xc5\x18\x8b\xa9\xb0Z\x0b\xb2\x87w\xf2\xa9\xba\xf5&gt;\x06\x02\xcf2\x98D\xabUI\x04M_\xc8\x7fr\xd2\xc3e\x889:\xf3\xaeV|\x92\xdb8\xfe\xdb\x86\x9b\x9f\xcf\'T\xd9\x84\x84\xa5\xae\x11\x89\xb8\xd0\xe2wzEH \x10\xb0\x8d1\x0f\x06\xc3\xd8s\xdcc\xf5g\xefW\x93\xf2\xf9\xf5_Y\x1c\xd1\xabb(W\x10\xf2}:\x8eY#f\xb3Ol\xee\x8dc58y\xdc\x98;\x91\xcfg+\xf7\x0f\xe76(\xad/{C\xc2"\xd8\xe4c\xf14\x8a\x1c\xe3\xff\xe1H\xd5[M\x923_\xda\x07\xac\xa5\xff\xf3r\xfe?i\xdfy\x1c\xafT\xe6\x97a\xea]S\x81sd=\xe52\xc3q\x81@\x10B\x80\x94\x03\x07\x17\xb1\xb5pUPJ\xed\x87\xb0;k\x11\x8a\x80:\xc3\xa5\x11\xa5\xb1\xb6\x15\x90\x1aW\r\xbdC\x99U\xa9Z\xc3\xf0\xbb\xab1\xab\xcbiM\xaf\xea\xe9\x1a\xab\xedu\xedZ;o\x9d=\xdbt\xce\xde\xbd&gt;t\xf7\x17\xac\x1f\x9f\x1f\xf8\x90\xf0\xd3#\xcf\xd7\xeb\xf3\xfa\xbc_\xbc_\x1fL\xfa\xc3_\x9d\xe7\x8c\x7f\xa5\xd1M8\xf4$\xe9\x85\xeb\xd7\xcfn^:\x19\x0c~&lt;==\rw\x9f\x8b\xb2&gt;M\xde0od\\F\x83\x95a\xeey4\xe3{\x82\'N\xda\xfe\x8bA\xb3?p\xf9\x9a&gt;\xe7v]m]]\x8dE\x7f\xf8\xec_\x19k\xd2\x9eNG\x16\x89ts\xe9&amp;\xd4\xd3\xfe\xbe\xe0\xf2t0\x18D\x8bj\xa9L\xc1\xcd\xebV\xae\xe5\xd2&gt;\x85\xf5j\xee\xa1\x0b\xd2\xc0\xb3\xef\'\xff\x81\xcd\x90\xcd\xc0\xab\xb5\xfb\xf4\xc7\xb5@e\xd1\x93\xce\x96\xb6\x92\x9c\x15GH\xa4,\xfd\xf8\xb5\xc3\xce\xa5\xa5\x91\xb1\xb1\xe1\xe0\xbd\xbe~\xd0H\xffE#S^\xd6t\xe4\x10\x05r\x0b\xb0\xa0l\xbd\x8a\x0e_c!\xdc\x81[\x0fF\x07\xee\xd4\xd5\xf8\xe9\xd0\xad\x12\x9d\x05H\x85\xa8\xc2Q\x95s\xff\xfe\xda\xda\xda\xf8\xb5\xc5\xc5\xa5%x/\x82\xc6\x97\x14De^\x9e\xf4\x02\xe5\x8bR\xc0:\xcfG.\xafc8K\x89\x83j\xff\x04\xc5r\x91\xae\xd3\x9cR\r"r\x14{&lt;\xdf\xe5ltn\xf4\xac\xaf\xaf?_X]\x7f\xb0\xbe\xf0\xea2\xfd\xf6\x9aT.W\x8e\x9d\xa5~Q\x9a\xcd\xc9=\x04X\x0b\xd8\x8exf\xac\xde\xa8\xb1\xd0\xeb\xb3\xaeS[/0\x15\x9a!zu\xfe\xcc\xe9\x85\xd5\x95\x85\x07\xf3s\xf3\x03\xb7\xe6o\xcd\xcf-&lt;\xfd\xdap[\xafe1\xe5\xe7\xd3&gt;-\xe5\xe4\n\x04\\\xe4\xf4,\xb6X\xb8\xf9\x1b\xe0\x16=\xeb,y\xf8\x02\x8f\xc9\xcc\xd3,\xfa\xc3\xb5\x0b\x0b\x0b+(\xd6\x1ch~\xfe\xf1\xea\xb3\xc5%eH\xc9\xe4\x96\xa6A\x9f\x9f\xcb\x11\xf0\x91\r\xac\xe7\x9aGk\xc1-z}C\xd1\x97\x87)\x12I^k\xeb\xe2\xe2\xb5g\x1b\xebOV\x81\xed\xfb\x85\xf5\xe7\xcf\xefmnn\x8e\x04y&lt;\x1e\xe5\x10\x85\x9a\x8db1\xf8\xbaU\xcc\xc7t\xbf\x01\xb7\xect\x92\xe0j\x03\x8d\xa2\x1cku^C\x93|\xf3\x1e(zB?\xfb\x98\xc7\xa84*%\xfbC2\x87#\x14\n\xb9\xda\xcb\xb70\xc7\x9a\xab\x83 \xd2\xeb\xa5&lt;\x8d\x10\xb0\x9a\x11\xd2\xf88PA!]\x9e\x9e\xfc\xe7\xe4\xf2\xf4\xbdK}L\x1b\x85B\xa5\xcahW\xd1\x1d\x1f\x81\x90\xab\xdb8\xba\x0bke\xdc\t\xd3\xe9v;)\xbb\xadA\xa2\x18\xd36\x8bH\xe3\x87on\x02\xd8\xf2d\x14\xcb\xf6\xf1I\x1b\x85\nX\xe44\xa2\x00\xcc\x12\x08\xe0:\xc4\xfe\x19\x03\xdcJXE\xb7[\xab\xf8r\x91\\\xc9\xe2#Ng\xc3\xcd\xa5\xb3\xb0\xb8\xbf\x04\x8e}d;q\xc2f\xfb\x88JMK\xa3Ph\x1c\x81P\x80\xeeD\xdd\x19\xc0~\x90\x1fw\xbc\xd6\xaf\xb2\xdb\xedG\x04\x88T\xce\xe7K\x9d\x88\xf3\xa6t\xa9\x7fL\xd3\xda\x1d\x94\xd8l\xd3\xc7l6\n-\xedC*\x8fBd1\x14\x90Y\xc8g\x1b\xc7wa\xaf\x8c\xd5\xb0\xd9n\xb5V5 $\xbeF\xcb\xd7"\xd2\x06\xa9TS64t\xb9l8\x18&lt;y\x8cBI\x03\xf1xD.\x17\xf2\x8a\x8bt\x9e\xde\x11,\xdc\xdc\x8f~\xb3\x15\xb8DY\r|)\x9f\xa5\x85\xd3\x08\x1f\xdd\xabk\n\xf2l6[t\xca\x8c"Q2\xb4\\\x86\x94+\x15}v\xfa\xd9N`\xed\x9a\xad\x05\xbb\xc0\xaf\xac\xf2,\xad\x96\xab\x19c\xf4\xf7\x0b\xc74yeM\xdd!\x9b-\xed\x0cJE\x05,-_\xc0\x95JES7z\x9av\x04k\xb4\xf6G\xc8.\xab\xb5\xde\x95%*\xe0s\x19\xc2\xbe&gt;\xe3Ee\xd3pwwo\x1a\xb4\xb0\x7f\xa4R)\x14\x8a\x84\x85p\xf9Z\xa9h\xa2\xaeN\xb73X\xc7\xef\x84\xc3\x10\xc5b\xbb\xcbT.\xd2r\x85B\x85\x82i\x94\x84B\xbd\xcb6t`\x11\xa0h\x14\xa6\xbc9\xa0\xd5J\x0b\xca\xbb\xea\xa6\x9aw\x06\xeb\xe8\xd7\xe1\x9a\x19\xe02\xdb].\x87\x88+\xe4p\x14\x17\xfb\x82A\xde\xef\xaf.\x9fIC\xb1hd\x1aQ\xdeS\x8eh\x0bD\x135]\x15\xc8\xce`e&lt;\t\x87\xc33\x8d&gt;\xb3WEw\x95#\x0c\xa3\x00\xb2kzy\xf9\xea\xdf\'\xcf@u\xa0\xf2x\x12\x19\x83\xd5Y\x0e\xcb\xb1\x89\xae\xae\t\xa7vg\xb0p\xdf\x84g\xfc\xfe\xc6\xc6F\xb1\xd7L79\x10\x06w\xa4\xbf\xdf\x06X\x93\x93\xcb6\x9e\xa47\xd4\xa6\x94\xb3\x02\x96\t\x87\xc3a\xb1tU4k\x9bFw\x04\xebq\xd8\xeb\x9d\xf1\x8a\xc5\xe2\xfcFs\xbd\xa5\xbc\xb5\x95\x0fM\xe2\xf2\xd5\xe5^x\xb5u75\x95\xe5\xe9\x02\x16\x95\xcbe\xb2X,\xe5\x88\x94?4\xbf\x13\x0f\xb8\xe1V\xfd\xdeF\xafW\xacV\x1b\xf2\xc5^\x95e\xaa\'\xd0:\xdc\xa7\xec\x0e\x06C\xc1\xe1\xa6\xb2gM\xba@\xc0\x02\xdf\xbb\xea-t\x87\x88\xcf\xd7\xea\xb6\xef\xe2v\x06K\x8czehi\xc9\x17\x9b\xe9u\xa6\xae\x80\xa6\x0c=\xc6\xa0\xad\x1e\xea\xd1\xf5t\x9a\xbc\x10_t\xa1!BX\\~\xcf\xcb\x8eY\xcc\xb9pw\xff\x15\xf6\xfa\xd4j\xb1\x1a\x9d\x8c\xcf\x177B\x82M5;\x87t\xa0\x00 MMu\x01\xb6W\xe5W\xa9\xea\xcb\x11\x16C\xc0\x0f\xbcL|\x88\xf5\xd2&amp;\xe3\xf8\xf6\xdf\xc2f\xc0\x82\x18\x1aZ\xaa\x0f\x1a\xf2\x1b\x1b\xed\x96\x8a\n\x9d\xaeg\xcad\x9a\xea\xb4\xf8-3\x90t*\xb3JEw \\\xb9\x90\xc1\xef|I(\\\xc1\xd8.\xdcV\xeao\x01\xab]\xad\xf6x\x0c\xd5-\x07\x0fF\r\xb3\x98L\x13\x13]\x16\x0b]\xa5\x02(\xb8\x14Tf\xb3\xdd\x84\xb0\x84\n\x01`="\xb0\xb1\xb6\xeb\xee\xa3\xcc?\xf8\x7f\xc2\xf2T\x83]\xa7\x0e\xfe\xd9`\x80\xa0\xa9\xe8\xe0\x90\x172\x0e\xf5\xaf\xd1\xeb\xb3\xbaD,\xa5\xd1\xc8\x11H\'&gt; $\x15b\x9a\xf5\xb8\xa3\xdb\xe9\x99\xbf\xaa1\x17\xb7\xb7\x03V\xa4\x1aTRr\xeaTI\x0b\\\x94P\xc8\xd0t3\xa8\xd5&gt;\x9fX\xed\xab\xaf\xd0\x00\x95\x91\xc3(0\xb9\xf1\x89\xec-,\x8b\x04\xee\xf5\xa3\xd4\xcc_\xd6\xc0\x1d\xb1\x1d\x05\x8b\xa0T\xa0+W\xae\x94\x00a\xc4\x90\x0fPp1\xa8\x7f\xa2\x92\x11\xb3/2\x10\xd3\x0b|b\x12\x96Q\xc4\rt\x0c\xee\xcd|?\xac\xb2\x16\x17\x17\xb7\x7f\xf7\x06\xebJ\x94\x0c\xa0"\x11\x83\xc7\xa0\xf6\x18"\x1e\xb5\xd9\x85R\x11\x8b\x8cF\xc0\xaa\x07\xac\xc4\xc29\xec\xa2\x98\xf1\x9a\x90\xbcw\xdf\x9fP\xacJ\xe0B\xed\x8az\x15\xc5\x02\xb0j\x03\xa0E&lt;\xbez\x93S\xc3\x94\x10\x89E2\x19G\x80\xd0_\xe0cc\xd9\xdb+\xd8-\xb5\xb6\x1f%\xa7\xee\xfbd\xc6o\xad\xac|\xc3\xe5\x89\xfc?\x90Q\xb0\x92\xea\x88\xd8G7\x95\x07XLbQQ\x11\x91(\xe3\x08\x0bT\x83\xf8\x84\xf8\xc4\x8e\x8e\xa7X\xa5\xd7S\xf6\xb9\xe4\xf4\xbd\x9f|\xee\xb7W\xa2\x8ary&lt;\xd1S$\xe2\x81\xe0\xf9\xa0\xb6\x06*DH\xb3\x90\tN\xa1vq\xe4\x05\xde\xc1\xf8\x84\xb8\xd8B\xe0\xc2\xa4\xe7\xc7\x1dxHp\'\xa7\xa7f\xb6\xa8\xec99\x959Q.(\x14\xed&gt;\x9f\x15z!\xb8\xd7LM\xe9\x9aAZ\x96\xdc(\xcb\x96\x91\xc9d\xa2\xcc(D&gt;w\'\xc4\xc6\xc7\'\x15\x16vla\xf0\xb8&lt;\x0ew\xb7\xf0\x91{0=u\xdf\x15\x95\xbd2\x07\x04X\x1e\xb5\xba\xdd\x07\xebg\x87\xa3S\xa7\xd3\x945\xb5\xb5\xc9Y\x1a\x96B\xc1\xc9.\xa2\x11\x89d"\xd1(\x0c\xfc:%!...\x91\xcdf\x17&gt;\xbc\xf5\x96\xff\xf6\x00w`v\xeb\x87\xc4s\xeeA\xb0\xeb}\x9f\x15\xb0\xaa\x00\x0c\xec\xf2\xf9\xd0\xe7kt=\xba\xb2\xb6\xb6\xb6PH\xc9\x92\xcb\x85\xd0\x1f\x92\xd1m}t\x0e\x82\xd1\xf9"%.\x8e\x10\x17\x9f\x94\x98\xc4.\xec\xf8\xcf\xdc\xdb\x8b$.\xe3\xf8\xca\xb7lB!\xc1\xedNNNN\xcf\x8c\x14W\xe6T\xe9\xf5U9\x95\xed\xea\xf6b+\xdc\xfcXy(S\xa8W"Q\xca\x15\x0c\x81\x10e:\x86\xae\x9e\x8d\x0c\xbf;.\x81\x10\xf3NBl\x12\x88\x1d\xcb\xfev\xe5\xad\xecX\xe3p\x07\xe6\xb6\xb6!\xab\xceE\xcd\x02\xa5\x96\xa0XU\xfa,=\x841\x1aC\x04\x9d\xc8\x8bJ\xa2\x90k\xb8\\c\x11\x99F\xa1\xd1hd\x19\xa7\xf5\x83\x94\x84\x18\xfc;\xfb\xf1\x84\xd8\xdd\xe0\x17\x81\x90\xc8~\xf8\xef\xd1\x9f\x19K\x1c.c\xf6\xf56\x9b\x90r\xee\xbdt7\xde\xfd\x06+\xf97\xed\xa8[\xe3\xe3$\xe0*\xf6\x15\xdb\x1d\xcd\xf2\xd0\x97Q\x85\x94J\x96\x94\xc1\xc9&amp;B\xfb\x03\x071[8\xe3\xc6\xe3c\xf0\xf8\xfd1q\t\xf1\xbb\xe3\x93\xe2\xdeMIHd\xff\xb05\xfb3~\xe2\xc5e\x8c&gt;}\x98\x94\x18\x8bO9\xb7g\xcf\xe0\xa0\x1b\x8e\xc1\xf4\xe4\xe4\xf7\xf6B\x14\xab\xf4$P\x16\x94\xfbb\xab\xab \x8f)\xe1\xf5\x86x\x12&amp;\x8b\xcb\x92\x0b9\xd9\x7f\xa1\xa0?&amp;\x91\xb39\xba\xdf\xa5\x10b\xf6\xef\x7fw?&gt;\xe6\x17\t\xf1\xb1\xbb\xe3\xe3\xf6\xa4\xe0c\xff\xc7\xc9\xf5\x84\xc6q\xdd\xe1\x1d\xcd\xbcy\xf3ff;3,;\xd2vga`|\x08\x82\xb0\x8b\x84\xe4Ek\xcb)\xebEkV:H\xb06Y\xa9D\xad/\xf5A\x84$\x0e\x8d\xd9\x1eR\x02\x06\xd3\x05m\x9a\x1e\xac\xc3\xb6\xb4*\x98BK.&amp;\x88\x12R\xeaKUHK!\xa7\x1e\xdc\x9bu\x89\x0f9\x08\t\x94\xd4\xf4\xfb\xde(\xa1\xa5\xa4\xad\xfb\xb2\xbb\x16\xb2\xb5\xfb\xcd\xf7\xef\xf7\x1b\x93\xc4-n\x1e\xff\xf9\xff3\xd9\xd4\xd4\xb7\x1f\x1f?p]\xcb\x97\xc2\x0bF\xa30&lt;\xc0\x01WI\x92\xbc\x06\xba\x00k}\xa63\xbcu\xeb\xce\x9d\xb5\xce\xd6~\x13\xa7\xd1\xdd\xba~\xb9~\xf1\xd2\xc2\na\xd5*0\xfcO\x0f\x04~:\x08\xc0\x96T\xf0\x97\x93:FK\xfa\xae;\xbfy\xfc\xf8\xb9M\xa6\xff\xef&amp;O\xe6\xdd\xa2\xe5+\x94a,\x04\x8a4&lt;\x085\xacqR}\x97\xb0\xd6\xd7w\xfb7\xef\xdcF"\x87\xfd\xb9\xfdv\xbb\xb1Q\xef^G\n{+\xafhT\xdb;\x0b\xbfx1\x96"\x06\xac\xd8Ne\x04\x11\x9dT8R\x18\xa8}0F\xf7O=?Q\xa6\xe5 \xda\xbe\xc2;\xc7AX%\xae\x90"\x8e\x92\xd7~\x92\xc3\xda\xed\xdc][\xfb\xd1p\xd8Y\xbe\xdemlt\xeb\xf5\xee\xea\xe5\xed\xe9\xca\xec\xec\x85\x0b\xb3\x88\xe1\xdc\x8f\xc7B\xa6\x81\x87\x03\xdb+\xd3tU\x9a*K\xda\x86\xb2\xa0\xe4s\x01CE=;+\xba\xae\xef8\n\x0f)|\xc1\x0b\x0e\xab\xc0\xa5Q\x05\xf1(\xfc`m\xf8\xd1\xfa`w}\x1d51\x1c\xde\x1d\xde\xeco-uq\xf8\xef\x92U\xa6\x81\xeaB\xad\xb2\xd2\xfd\xd5\x8b#aCC\xcfK\rC\x11\x96\x03\xa3I\x13\xd9\x94\xc0\xc5&amp;{\xf2\xf8\x7f\xf1\x18*\xea\xf1\xd3M:\n\x03\xc3\xe1\x13)\xf2\xf0\xbeqR*U\xb3\x8cA$\xaeo\xdcZ\xeb\xf4\x07\x83\xc1\xfa\xcc\xf0\xe6\xf0n\xa7\xd3\x99\x19,\xd5\xbb\x8dF\xa3\xddhL\xd7p\xcb_\xa9l\xf7@\x96/R\xa02\x80\xca\x96\xca\x9c\x14\x952\x02\x8f:J\xbc7*c~s\xf3\xe9\x7f\xf5\xd8\xd4\x14\x1cEP\x96\x03X\x96\x92\xb6m\x18i+Mc\xa8\x08X\x9a\xb0$\x19\t\xef\xe0\x83;\xc3\x8fv\x07\x7f\xda\xedwn\x12\xd4\xf2\xf2\xd5\x8b\xdd\x8d\r\xa0B\x8f\x82\xaaY\x90u\xe9\xf7\'\xb1\xf04U\xb6!m\xe9D\xd2\xc4\x18JSa\xe3\xad\x1d\t5-\xb3\x88\x99\xf4\xf4?3\xf6\xc2\x87\xcf\xfe\xbe9_\x04\xbb./%\x92`&gt;\xb2!%D\xf4\x00\x8b\xc02&amp;\xd1\x13\xde7\x7f\xb9v\xb3\x0f\x15Y\x13\xfd\xe5\xe5\xe5\xc1\xd6\xc5:`m\xb4\x9b\xb0V\rlm/,\xdd@\x0cc\xfa\xca\x90\x86m\xdb\x8ec[-[\xda\xec0WEJF\x98\xe1(\x7f\x02\xfb\xe4k{l\xea\xa5O\xcf\x1e\xcc\x175W\x16\x9eR\xda\x8e\x90\x90\xd1n\xd1\xb3^\xb5\\\xa6\x8e\xa4+\x88\xe3\xf1\xbb\xb7\x86\x9d\xfe\xee`\xa6\xd3\x01\xaa\xc1\xfd\x97\xe7`\xf7n\xbb\x8d9\xc8\x82\xafTz\xf5WOb_\x18\x9e\x80\x80\x86\x11\xb1 \x94+\xc1\x92a\xb7l\xcb\xc5\xfc\xc6\xc319\x94\x00\xec\xf8k\n\xf6\xa5O\x9e&gt;\xd8\xd4\xa8\xe8)\xcbQ\x8a\x89v\x9cHx).9\xf0\xc2\xb2\xc6\xa5\xf9\xf2\x0c\xef{\xb7\xd6\x863\xfd\xfe2\xd8Z\xde\xda\xda\x02\xaa\x8d\x8d6NE\x9f\xed\xde\xc2\xd6\x8d\xb1P\x02\\\xa5\x10\xd0V\x11\x13d\xb6&amp;\x8e\x12\xb6\x91\xa2ZA\x97\x90\xbclZ\xbfX|\xf0\xf9_\xfe]\xca\xa9\xef&lt;;\xdb\xdc\x9cw-\xb6\x82\xa5\x1c\xc4PF\x00\x07wy\xe7\x07\x9e\'.\x12\x06\x15\x8d\xa3o\xb1\xe9\xfb}B[\xc6\x8a\x05_\xb5Q\xa99*,\x80\xf5\xd7OFB\xb6\xe0+\xb8J\xc2U\xb6\xb4\xa2\t=f\xcb\x16\xdc\xc1\x0b\x16\xa4\xd0aU\x902\x00\xfbW\xc6\xb0Ki\xaa\x8a\xaeo!\x1e0\xbc\x0f\xc6\x15@a\xc8\xa6\x80\x94\xa6\x10\xf2\x1cV\tyD\x9a\xe2+\xa0\xab\xa3\xad\xd5\xff\xeeR}\xb5\xa1A\xb5\xf5&gt;\x83\xfdou\xeb\xda8\x96\x86\x17\xe3\xa3#i\x83\xf8\xc9\x04\x15AXH\x12`A\x14)\x146\x0b\xcb4M\x88T\xd4{\xcf?\x03\x9b\xfa\xf0\xf33\xa0\x9a\xd7e\xc5j a:\x86)\xa3h\xb4&lt;m\xaf\xac\\.\x7f\xe5\xafX\x1c\xbd\xc7\xaa\xef\xf7;3\xfd\xc1\x16n\xa0wP\x0f\xd3\x8dK+\xd3\xd8\x96W6\xe6^?\x19\xc7\x10?\x15R\xd9\x92&gt;\x8a\x00\xcb\xf5\x0c;R\x11\xe8B\x0e\x1d\x85\xaf\xc1\x9a\xe9\xa2\xd0\x8aD6?O`_\xde\x93\xfe\xed\xc9\x83\xdcVt\xbb\xc3\'4\x87\xf26\xb4\xf2Z\xc2\x00\xe7\xec\xae\xa4\x0c\xba\xca\x8b@\x06\x83\xc1\xf5G\xb7\xf5d\xe4A=\xd4\x17VwVWwz\xbd\xde\xca\xf6vc\xe3\xfe\x8dl\x1ccD\xa7\xf0\xb7&gt;\xc0\xa1\xa4\x99\xda\xb4\x93\xa2\xb0x\x05\x8b\x91\x83&lt;\x9a\x1aWQ3\xb6\xf9\xf4\xdc\xea\xc7g9*\xb6\xa7\xe5\x83,ZQ\xd2\x99,g\xbc\xd0Y\x81\x97\xb2"\x00k\x91\xc0J\xf0\x97w\xed\xf6\x1d\xc0\xeak\\\xfcK\xe7z\xf7rwaa\x05\x1a6\xba\xaf\x9e\x1c\x8cP\xa5\x9e-\x040)\xd2\x82\xa7$,\xa5X=\x80i\xa1"ti\xeb\xc6\xcfa\xe1\xe4V\'U0;\xfc\x84\x076IP\xe5\x0b\xc8\xcf\'*\x06\x12z\xba!Z\xad\xec\x1c\x97f\x0c\xb8\xe2\xd3\xf7\xd6 !\x8f.\xae\xb9:v\x9a\x1eV\xc0f\xfb\xe5\xdfe0&lt;Z\xcb\x80}P\xa6\xd2\xe4\x1c\xb3\xd0\x15l\x85\x88\xf6r\xf2\xc8[\x0c#\xbery\xb4\xf5\xf9\xdf~\x1c\x9f\xbb\xca\xc7UQ\xe7`\x00\x00\x06\x0cIDAT\xe4\x83\x05\xe1\x04\x89\xadMH\x03\x1a*V\x0c\x1e^\xdabO\xb7\x92rV\xad\x02\xd9\xa2\xfe\xa7\x1a\xc6\xb18\xfd\xf8\xfb\xcb\x83w\xdez\xeb\x9d\xc1U\xf4i}a\xa7\xc7A\xdd\xdc\xff\xc3I\x16p\xfd\x93\xbaH%\xd8r\xd0\x10\x16\r\xcf\xb5\x8b7\x1d6v\x13\xda8\xe2~H\xef\xa0\xc2\xb4\x96\x85\x17\x1e?\xd1L\x91*\xec\nJ(_a\xbdB\x00Y\x81\xb1\x91\xfb\xdd\xc3\xf41\x08\xd0\x83\xdb\x81\xab\xacQ\x95\x81\x0bcH\xf8\xa7\xa7\xd0\xfd\xe1\xd5\xa5\xa5\xa5\xbf^Z\xe8A\xc2\xd9\x0b\xcd7\xae\x95\xc2\x18\xef\xd7j\xe1\xfad\x14!\x85\x11Q\xc0\xa5P4\xb7\x15M\xc5\xa1\x9b+\x89\xfc\x03\x97k\x82\xb2\xc2\xa7g\xdaT\n\x8e\x82\x82$\x89\xc4\x0b\xa4X\xf8R\xc6@\xd2\xd2\x96\x85EI\x9a\x97U\xc3\x9c/:l\x11\xd6\xcf\x12\xacR)&gt;\xf8\x87s\x17\xb1\xfe-\xf4v\xa6\xb7{\xb5\xc3\xfd\x87\xa5j\x82\x1b\x1e\xa1\xc9\xc7T\x06,`\x89\xcc\x96\xd4\xc5\x83\xae\x86\xb9lRDH\xfc\x16\x10\x9a\xb0\x18\xcco\x164(\x8b\xa0\x84p\xf8\xc21\xaaX\'X\x8f\xf0\x9e650\xd0\x86\xa0\xcd\xc6h\x0bJ\xbc\xc3\xd0\x0ec&amp;\x179\xbc\x0fF\x01~\xca\x87\xdd/]n4P\x0e;\xb5\xe6\xfd\xd3R6\x92\x13d\x87\xdd\xc0\x89\x81\xd1l\x9a\x91k8\xca\xcc7\x13(\xcb\xc9F\xbe\xa0.\xbei\xb20M\xc75\x8b\x05\xdd\n\x0e\xf4\xf3\x85\x0e ~e\x06\x81\x887\x05\x1a\x94\x1e\x1c|\x01_\xb6\xc7\xc1\x13f\xd9\x97\xc8\xbe\x9a\x91A\xf0\x06Zk\xa7\xdd\xc4\xaeU{s\xff\xe3\xf1(\xf3\x94\x9a@/4\r\xc7a\x04\xc6\xcc\x89\xc20\x84\xf3\xc1\x8f\x15\xe9!)\t\x0b\xdf\xd0\xee\x07[\x14\xd2*\x14\xb1-\xa0\xd2\x11=\x1e\xd0$\xc0&lt;\xcc\x08\xc7\xa3\xd7\x99l[\xa0\xa2\x01\xaa\xe5\xb1\xbd\x8c\xa4\x9a\x04I\x92\xe5\xc0\x88M[\x8d\xe0\xee5\x1a\x95\xf6\xf6\xec+\x95J\xed\xfd{\xe1\xd1(\x14\xca\x99\xf03\x1dl}\x965\x01\x00\xdc_\xd0\xf1t8V\x9a\xdc\xf42\xe7\xee|\xb9c\xe3[f\xc1\xd5E\xe5\x0bv\xa7\x10:\x8b8\x11i\x12\x9a\x7f\xa6\xc8\x80\x0f\x0cC\xd0\xf3FZ\x023 \x8c\x16\xabVs\x87\xd1c\xa1\xf7E\r\xb3\x87\x9b\xc3l\xf3\xb3\x83\xf1H\x84\x82\x9f\xc4j\xa7\xab1\x98A\x13\x02\x08T\x91V\x8e\x8b\r\x95\x81\xb9\xf0;\x80\x9c\xa3\x82\x86V\x81mA\xe14\x1e\x8d*&amp;.*\'\x04B\xc4\xdc\x00\x11[\x82\x9a\x82\xb00\x83`\x04\x96\x85\xd9\xde^5o\xd7j2\x0e~~x\x08X\x98\xd2\xcd\xfd?\x1e\x8cc3\xc1TE\'\xe1\xc2@\x0e\xf44\'\x8eS\xb4\xd9P\x1c;P\x8b\x1b\n`\x12\x8c\x9e-\xf8\xd3t&lt;\xee \n\x94\x99\x01\x14(,\x9cX\xc4)\x01\x1a\xb4;m\x8e\xb8\xe0\x17\x9bO*\x89\xf0\xa4\xd5\xc0\xcb\x81\x01\xd5^\x08\xc2\x1e\xed\xed\x11Z\xf6\xd9!o+fk\xed{\xe3\xf1\x91_\x0c\xd0\xe9&amp;\xf7[\xc4\x1fI\xd5\xb6/\xb6\xb8\xddH\xf2c\x9a\xec\x05 w\xce}o\xea\x1d\xda\xe2}M\x01\xc0}\xb2$l\x9f\xf2\x191+\x8b3_2\xdc\x9a,;O#\x1c\x06a\xf1\x8d$\xc4 \n\x92\x10\xdae\xe5R\x90\x94\x00\x0b\x8f\xbd\xf2\x95\xc3\xc3Z\xf3\xb0\xd9~\xfb\xc8=\xf2\xadb\x1c[\x14M\xea\xfbC\t\xc7\x98R\x15%\xdd&amp;9\x03\x1d\x13\x1eS\x9a\xbd\xbc\xb4\x90PS\xafU\xf0\x16\xc2k\x11\x95\xaf( P\x91/\xdc;\xa5\x0c\x9f\x16\x10`\xb8\xe5b\x11\x01\xbe\x08\x9f`d\xdc\x9f\xab\x90\x11\xcbs&amp;\xcd\xa0\xfc\xe8\xd1\xde"\xcb\xe2\xed\xdf\\\xa8\x1d\xfe\xfa\x8b\xa3\x0c7\xa7E7{\xb4\x97\t\xa5S\x880"\x84\xfc\x1b\x08j\xe6Jz\x08{\xbcT\xe7%\xe6\xe4\x19\xcc\xbb\x14Q,0~J\x97\x9e\xc8\x0fn%\x10F\xf6\xbd\xc8i\xb25s\x9c\xf7|\xe5\xfb \x87\xe5r\xa2\x95\x0c\x12\xcc\n#,\xeb`\x96\xaf\xbc_k\xee?&lt;=(\xc5,\xe7\xc5G8\x8b\xd9\x08\xb7\x04Q\xa4\xd8\x92XA\r\x88\x18\xd9l\x01\x88\x89\xe4G\xb6\xd2\xc8,G\x9d\x93\xc6S\x10\x96\xd0\t\xf4\xd1\xecB\xc5\xb4|l\xe8\xcb`\x1a\x95\x1e\x0c\xba \xd8\xc8\xfa\x0b\xc71\x98\xc5@hX\xc1\xa48o\x9a\x86\x17 \x99\xa5\xea\xcf\xde\xfc\xed\x0f\x90A\\Z&lt;J\xa0+\x81\x81\xb3\x91oM\xf4\xe2\xb2i\x82p\xd0\x97\x9b\x1c-\xab\x0b\x8d\x81\xf8G\xcf\xd5\xae\xa30\x0c\x04\x89\x9c\xf8\x11G\xb2\xad\xe8h\xa0@\xba\x92&gt;M&gt;\xe5~)\xc5\xb5)\xfc#\xf7c\xb473\x8b\x00!BB1\xde\x9d\x99\x9d\xa5ohA3\xdf\nS#\xac%&lt;l\xe6\x88R\x9cA\xb4\xe5\xc4\xa5\\\xa5b\xfbv\xf9)\xef&amp;\xbf\x97\xe21+\xd1\xcd\x84\xc9\x8a\r)\x83l\xb7\xdb\xf3\xef\xf9\x0bX\x8f\x03\xd7\xccd\xb0\xb4M\xd8\xb6:q\xc1\xf9\xe9L\x97\xa8\x13{\x16iN\xd1\xa4\x88\xaf\xc6-\x88\xda\xc5\\\x04\xe5\xdf\xdd3rM4\x03\xcb5\x81\xf6\x9c\x94\x0610\xac\x9d\xfc\x19\xf8i\xa5\x0c\xc4\x86!\xcej9\x16\x0c\xb8\xeak9\x8e\xa3\x02\xca\t\xcf\xb8\xf3\xb9y\xdc\xfa\xa5\x8cVwi\x8e\xe6\xe4lHGN\xba\x16\x8dc\x1f=^\x90\xad4\x9eU#^b\x16F\xb1I\xa7b\x91\x07\x12]\xe6\x80\x7f\xc1\x03\x81\xce\xfb\x92qC\xb8\x9c\xb6\x83\xde\xfbP\xd0\xad\xe9ZY\x9es\xc30\xc8\x83\xa2\xb2,9!v\xe1\xccP\xa4s\xce\xd8\x1d\xb5\xca\xf8\xc6\x93\xc2v\xc1\x16\xe6\tj\x11\xb0\xe6\xa01\r\xdf\n\xf2-\xb4\x8f!\x12/\xdfF\x04\x07\x06\xb6@^\x06q\x9f\x9a\x06\xc5\x86\x9c\x99\x0c\xd8\xc6Q\xb8\x9c\xeb\xbe\x1c\xd3r_A)\xd8\xd8ZK\x81\xca\x9bQ\xb9Q\x8a\xa0P\xe7\x02*\xd99-2\xb05\x9cs\xd6CaE\xa9\x1a\xd4x\x89\x18\\4wU+\xd1\xe1\x13U\x08\x1c^\x1a\x01"\xbe\xa9D\xa6\xca\xf0\xcer!_#\x8e\x8e&lt;\xbd\xc3\x82\x84\xab\xe7|\xfd\xdeN\xcb;\x15\xa8\n\xcf\xc0\xbe\xcc\xdc\xa4\xdc\x9b\xcd\x9f\x88L1\x8e\xd1\xe0\xf0\x96\xe3\xc0\xd1\xea&lt;\xce\xffp\xa1eM\xea\x12\n\xe7\x00\x00\x00\x00IEND\xaeB`\x82'</t>
+          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa6zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\xe3 \x0c\xdd\xeb\x14\xff\x08 \x81d\x8e\xe3\xf2\xb0\xeb\xaa^\xf6\xf1\xff\x13\xd8\x89\x13\x8f\x8b6e\x1c\x82\x86\xa7\x87$\x9b\xfe\xfd\xf9K?\xb8"\xe7H2X\'\xbdu:Z\xd0Q\xb3%\x8d\x1c|\xad\x83N&amp;\xbe\'#\x9bFM:+k\x96\xbe\xfd\xff\x92\x9e\xd9d\xa2\xd0s\xf8\x1c0\xcdPR\xe93\xa7\x94\xf4\xcbl\xdbs\xd3\x9d%\x8c =L\xcdd\xf5\xe2\xc9 \xc5\x93\xce\x104\x9e%J\xf1\x81_A\x183c\x1e\x9b\x11&lt;\xc5\n\xcc\x02\x8du&lt;\xba\x03\x16rX\xa1\xbf\xc2\x05P\xd9D\x05\xebb\x01\xea\x05!N\xc0\xb9\xec#hV B\x9c\x0e\x94mol\x1b\x12\x94d\x1f\x10\x0cg\x18\x1cx\xa25\x18\x17\xc4\x9c\xa1\x98\x9dF\x87\x0e\xc8\x08\x92\'Y\x08=\xc2]\x1d\xf4\x96\x08p\x93+\x1f\x8b\xbd\xc2\x8b:\x00\xf9\x85\x0c\x01\xf4\xa0e\r\xa3\xae\xa2Nj\x1eF\xa5\x12\x0c\xa9\x82\xd6\xec\xa6\x1cW\xcaU\x86k,\x11*\x86[\x10\x1a\x07\x17\xc6\xac\xd8B\xae \xa0\xc0#|E\x19x~Q\nw\xc7\x88\x9a\x0c\xdd\x01o\xec9\x0b\xd7$\xd0\xdb\xe7\xf11?M\x0e\xba\xce\x8e\xa7\xc9\x91"\xd5\xac\x801\xe5}\x96\xd4\x9c\x9d@\xf4K\xc6\r/.\'\x15&lt;GH\xa1\n\r\x99\xdd2%\x9cgJ\xda\x18\xaa|Bm/I\x1fE*\x887^g\xd4\x92,\xcb\n\x1d#"n\xe8QN\x06\x8ep\x16\x08,s%n\xaei\x8f\xcd\x87\x18\xfdx29\x03H9\x1c&gt;J\x18\x95.\x89G&lt;3f\x16\xf1\xe3?R{k\xad\x8e\xe8\xc2S6P\x9fJu\x82\x96\x82\x84\xcd@\x9e\xe1\xa6\xc0M\xc4H\xde\\0G\t\xa4\xfe\xb3\x88I\x07W\xa3b\x13\xe9\x17+\x1aD\x87\x1d\xefLz\x80l\xe3\xc6Q\xd1M\xfc\xe8c\x0b\xa6\x0c\xe3~+\xe6R\xd1D\xb8/Xu\xd22\xfbL\xf5\x9e\xe6\xec\x95\x99\x01\xbc\xcb\x89\x963s\xaaw\xf0\xb7\x82\xab\xdcY\xd9\xd2\xb3\xda\xbe\xcb24\xffgy\xfbi\xf2\xa8\xbc\xe9y}\xff\xa7\xe6o\xe1\xf8}\xb6\x166\xad\xef\xcfw57\x95\xa5\x98\xe5\xbc\x98\x17\xd3\xa0\xc3\xc1\x90v\xde{\xd1\x89{\x9d\xbd\xf7z\xebM\xc5z\xc3\xba\xf2\xf2!\xbeJ\xef\r\xd3\x1d\x89O9\xa4;\x12\x9frH\xed;\xe4\x9c\xc4\x03\x0e;\xd4~\xf8n\x88t\x00\xb9\x99\xde6\x0c\x04\xefY\x8e1\x80M\xf17\x9f\xa9\x7f\xfep\xe7=\x0c\xefA\x90\xedM\x0c7\x97\xca\xd6\x8d\x91\xbb\xf7\xda)\xc9\xdfj7\x86\xda\x07\xd5\xa9\xbf\xdd\x17\x1d\xbe\xcf~\x011\xf7@WN\xa3\x8e\x84\x00\x00n\x1cIDATx\xda\xec\xfd\xe7\x93eYv\xdd\t\xfe\x8e\xba\xf2)\xd7\xe1\xa1R\x17\xaaP\n\xa8"\x04\x05H\xb0{\xc6\xda\xba\xcd\xfa\xcb\xd8\xfc\xa136m\xc6\x19\x1b\x12$\xd8\x00Y\x00J\xa0DV\x8aJ\x19\xd2\xf5\xd3W\x1d5\x1f\xce\x8b\xc8\x02\xd8 \x87\xddM\x84g\xa2\x8e\x99W\xa5Ex\xb8?\x7fw\xf9\xde\xfb\xac\xbd\xf6\xda"\xc6\x18\xf9\xcd\xf9\xcd\xf9?\xf9\xe8W\xfd\x02^\xf5\x891\xe2\x9d\'\x84\x80\xf7\x01\x1f&lt;\xd1\x07B\x0c\x04\x1f\x08!\x10\x01!@J\x89V\x1a\xa5\x15Zk\xa4\x94(\xad\x10B\xbc\xea\x1f\xe3\xd6\x9d\x7f\x90\xc0\n!`\xad\xa5k;\xb6\xeb-\x8b\xc5\x82\xc5|\xc1\xf9\xf9\x05\xd7W\xd7XkQJ\xe1\xbc%\x84\x00\x08\x84\x00\x84\xc0\x18\xc3h4b6\x9bqpx\xc0\xc9\xc91\xe3\xe9\x84&lt;\xcf1Z#\x95DJ\x85\x94\xe2\x1f4\xe0\xfeA\x01+\xc6\x88s\x8e\xe5|\xc5\xe3G\x8f\xf8\xe4\xa3\x8fy\xfa\xf4)W\x17\x97,W+n\xe6\x0bn\xe6s\xfa\xbeG\x08A\x08\x9e,\xcb(\x8a\x02!%]\xd7\xe1\x9c\xa7\xae+\xf6\xf7\xf6\x99\xce\xa6\x1c\x1e\xecstt\xcc\xc1\xd1\x01\xa3\xd1\x98\xb2(\x98\xed\xedqt|\xc8d2&amp;/r\xa4\x94\xff\xe0@\xf6\x0f\x06X\xce9\xb6\xdb\x86\xa7\x8f\x9e\xf2\xee\xcf\xdf\xe5\x83\xf7\xdf\xe7\xd9\xd3\xa74M\xc3j\xbdb\xb5\xde\xe0C@g\x9a(\xc0\xda\x01\xa5$\x91\x88\x8f\x01?\x0c\xcc\x17s\xe6\xf39\x11\xa8\xeb\x9a\xb2,)\xf2\x82\xba\xaa\xa8\xeb\x9a\xf1x\xcc\xc1\xc1\x01wO\xefrz\xf7\x94\xc3\xa3\x03\xdez\xfb-\xf6f3\xf2"G\x1b\xfd\x0f\x06`_y`y\xe7i\xda\x96\'\x9f?\xe6\xbd_\xbe\xc7\xfb\xef\x7f\xc0G\x1f\x7f\xc2v\xb3A+\x851\x06m\x0cR\n\x94\xd6TuM\x08\x9e\xae\x05dd\xbdY\xe0W\x01\xef\x02\xeb\xf5\x9aM\xb3\x05\xa0\xeb\x1br\x93!\xa5d:\x99"\x95\xc2Y\xcbt6\xe3\xfe\xbd\xfb\xdc;\xbf\xc7l:\xe3\xb3O&gt;c&lt;\x19\xf3\xe0\xe1C\x1e&lt;\xbc\xcfd:\xa6\xc8\x0b\xa4\xfajG1\xf1U\xbe\x15\xf6]\xcf\xd3\'\xcfx\xff\x97\xef\xf1\xb3\x9f\xfd\x9c\xf7\xde{\x9f\xeb\x9bk\x9csh\xad\xc9\x94\x06\x04\xce;Bp\xe4yNQdX;\xb0Y\xaf\xb9Y\xdcp}sC\x08\x01\xad4\xc3`\t1`v@\xf4\xcec\xed@]\x8f\xa8\xaa\n)5BI\x8a\xac\xe0\xe8\xf8\x84\xe9tF\x8cP\xd7\x15\xa7wN\xb9w\xef.UU\xf1\xe6[o\xf2\xc6\xdbo0\x9bMQJ\xbd\xea\xb7\xe9\xbf\xc9\xf9J\x02+\x84\xc0z\xb5\xe6\xbd_~\xc0\x8f~\xf8#\xde\xfd\xc5/x\xfc\xe4\tM\xd3\xe0\x9dGH\tD\xbaM\x83R\x92&lt;\xcf(\xcb\x82&lt;\xcf\xc8\xb2\x0c\xa35\x82\xc8f\xbb\xe1\xea\xea\x92\xe5r\x89s\x8e\x10&lt;1F\xf2&lt;\'\xcbs6mC\x8c\x91f\xdb\xa2\xb5\xe1\xf0\xe0\x90\x08\xb4mGYV\x14eMYW\xdc\xb9s\x07\xad5D\xd8\xac\xd7\xbc\xf1\xc6\x1b|\xef\xfb\xdf\xe3\x0f\xff\xc9\x1frz\xf7\x04\xad\xbfz)\xf2+\x97\n\x9du\x9c\x9f_\xf0\xf3\x9f\xfe\x9c\x1f\xfc\xc7\xbf\xe0\xfd\xf7\xdfg\xb9Z2\xf4\x03\xceZ\xbc\xf7D"\xceZ6\x9b\rR@Q\x148;\xd0iE\x96\x19\xc6\xe31\xb3\xd9\x84\xd9\xf4\x94\xdch\x82sl6kTf\x00\x101\xa2\x812\xcf\x12E\x91Y\x94PtM\x83\x94\x8a\xba(\x00\xd8n\xd6t]KY\x14\x9c\xde\xbd\xcb0X6m\xc3_\xfd\xf8G|\xfa\xf9\xe7\xac\xd6k\xfe\xf8\x8f\xff9\xf7\x1e\xdc\xa3\xc8s\x84\xfc\xea\x80\xeb+\x03\xac\xe0\x13\x85\xf0\xf8\xd1\x13\xfe\xe3\x7f\xf8\x01?\xff\xf9/x\xfe\xfc\x19\x8b\xd5\x92n\x17\xa9B\xf0@*\xcc\xdb\xaeE\x19\x89@\xe0\x82c\xddn\x101\x90\x9b\x0cDD*p6g6\x9b\xa0\xe4C\x96\x8b\x05\xd6\r\xb4MC\xbbm\x88\xdeQU\x05\xeb\xf5\x06\xa35\xe3z\x9c\xdeP\x9d1\x1eO\xd8l6\x98,#\x02\x9b\xd5\x12wtD$\xa2\x8dayy\xc1z\xb3\xe1\xff\xf1\xff\xfc\x7f\xb1\x98/\xf9\x97\xff\xdd\xbf\xe0\xcd\xb7\xdfd2\x19}eR\xe3W\x02X\xce9\xd6\xab5\x1f~\xf0+~\xf8\x97?\xe4\xe7\xbfx\x97\xcb\xeb+\x9a\xa6I\x9c\x94T\xf8\xe8\xb0\xfd@\x88\x9e\x10#B\n\x82\x88dZ\x83\x00g\x07\x08\x1e$l\xbb-\xc8\x88Q3\xf6\x0f\xf6\xa9\xca\x12\xa5\x04\xab\xe5\x02\xe1}z\xd3\x04X\xef\xc9\xa5$\xc4\x88\x1d:\xa4\xd4\x04\x1f\x18\xf2\x9cz4\xa2\xa8*\x8a\xa2\xa4\x1f\x06.\xce\xcf(\xab\x9a\xba,\x99M\xf7\xb8\xb9\xb9\xe6\x97\x1f\xbc\xcfr\xb5\xe6\xe2\xf2\x92\x7f\xfaO\xff1\xdf\xffG\xdf\xe3\xce\xe9qJ\x9b_\xf2\xf3\xa5\xfe\tb\x8cX\xebx\xfe\xf49\x1f|\xf0!\x7f\xfe\xe7\xff\x81\x8f&gt;\xfe\x98\xa1\x1f\x98\xcf\xe7\xb4M\x83\x96\x8a"\xcb(\xf2\x9c\xcdfE\xd7uhc\xe8\xfa\x96@@Te\x8a\x12! \x01%\x04\xdeZ\x9a\xcd\x86y\xf0\xb8\xa1G\n\xc1\xd0u\x08\xef\x19\x959\xdeh\xda\xb6\xa5k;&amp;uMf2\x06\xe7\xc8\xb2\x8c\x10\x13\xff5\x9d\x8c1E\x81\x90\x82,\x1f\xb1X,\x91R2\x1e\x8f\xa9\xeb\x11n\x18h\x9a\x9e\x9b\xf9\r\xff\xdf\x7f\xf3\'&lt;~\xfc\x84\xf5r\xcd?\xff\xe3\x7f\xc6\x9d\xbb\'\x18c\xbe\xd4u\xd7\x97\x16X!\x04\xfa\xbe\xe7\xd1\xe7O\xf8\xf1\x8f~\xc2\xcf~\xf6s\x1e?}\xc2r\x99\xc0#\x10\xe9\xa6\x86 zO\xd7\xb6h\xad)\xcb\x92\xb6m\xb1}\x8f1\n\x9cG\xc4\xf4Fd\xdaPd\x19\x99\xd6\xc4\x18iW\x1b\xba\xcd\x86q]3\x19\x8d\xc8\xeb\x1a\xa3\x14}\xdf\xb1\xf0\x1e\xe7\x1c\x04O\x99\x19\xa4\x90\xe8,\xa3,K|\x14\xb4}\xcb\xfe\xc91]\xd7qs=g\xb1X0XGYV\xd4U\xcd\xf1\xd11!\n6\xdb-\xc30\xf0\xc1\x87\x1f\xe2\xad\xa3i\x1a\xfe\xf8\xbf\xff\x17&lt;|\xed\x01y\x9e}i\xc1\xf5\xa5\x04\x96\xf7\x9e\xc5|\xc9G\xbf\xfa\x84\x9f\xfc\xf5\xcf\xf8\xe4\xd3Oy~v\xc6|\xbe\xa4\xd96H!\x881`\x8cB+M\xb3\xe9\xe9\x87\x96a\x18\xc8\xf3\x8cQ]\xa2\t\x14F\xa1\xb5B+\x89\x96\x92&lt;3TEN\x9ee()\x91!\x00\x81\xf1hL]U\x88\x10!F\xca\xbc\xa0\xd8\x9b1\x1d\xd5\\\xdf\xcc\xf1\x80\x90\xe0\xdd@f\xc6\xa8\xac\xc0\x03\xbd\x1d\xa8\xc7c\xb6M\x8bXJ\x86\xae\'X\xc7v\xb5\xc66-JJ\xa6\xd3\x19\xd6Z\xb6\x9b\r\x1f\x7f\xfcIJ\xc9D\xfe\xf9\x1f\xff\x11\xf7\x1f\xdcK\xbf\x1cJ\xbe\xea\xb7\xfc\xbf\xfa|\xe9\x80\x15B`\xb5\\\xf3\xd7?\xfe\x19\x7f\xfa\xa7\x7f\xc6\xb3\xf33\xb6m\xcb\xc5\xc5\x15\xb6\xef\xa8\xcb\x02\xa3\x05\xcb\xc5\r\xebe\xba\xf5\xf5mG\xdbl\x89\xc1!|\xc1\xa8\xae\xd8;\x98\x90\t\x81\x91\x82L+2\xad(\x8c"7\x86\xdch\x94\x80\xe0\x1ceQQ\x14\x05ZI\x88\x10\xbd\'j\r\xc5\x08\xef=\xe3\xe8h\x07K\xe7#^k\xa2\x968\xe1\x19M&amp;\x8c\xc6#\xac\xf3)\x1dj\x8dD\xd2o6\x94yA\xa956\xcb\x89J!\x8a\x82Q\x91\xe3{\x8bm[~\xf8\x83\xbf\xa0\xef:\xbe\xff{\xdf\xe3k_\xff\x1a{\xfb{_\xba\xa2\xfeK\x05\xac\x18#\xdb\xf5\x96_\xfe\xfc]\xfe\xfd\x9f\xfe\xfb\x94\xfa\xd6\x8b\xc4O\xf5-U\x96\xb3?\xa9\xb9\xbe&lt;\xe3\xe6\xec\t\x04\x87\xd1\x1a\x05L3IU\x8c\x99M\'LG#\xca&lt;#W\x1a-\x05FI\x8c\x12dJ\x92)\x85\xd1\n-%F\x8a\xc4Ye\x19\x90"\xa5w\x9e\xe0\x03B@\x9e\xe7\x1c\xefM\xd84-\xcf.\xafX\xb6=1zz\xef\xf1\x9b%\x83\x92\x08\xa9\xa8ED\x8cr$\x82q&amp;\xc9t\xc4\xe4\n\xe7\x05AF\xb4V\x88\xbc\x84\xaa@ \xd8\xacW\xfc\xe4\xc7?b\xb5Y\xd1\r=\xdf\xf9\xeew\xd8\xdb\xdbC}\x89"\xd7\x97\nXv\xb0|\xf4\xe1G\xfc\xbb\x7f\xf3\xefx\xfc\xf83\x06\xd7\x93k\x81S\x1e/,\xc2:|\x03\xa5\xb0\xdc\xdd\xab\xc9\x84$7\x8aL)\xaa&lt;c:\x1e\xb17\x990\xaa\xab\x14A\x04\xa9`\x97\xa0\x85@\x0bPR`\xb4\xc2hM]\x18\xb2,CkCD\x10\xbc\'\x84\x98\x14\x0f1\x92\x99\x0c\x94\xa2\xedzF\x85\xe2\xecf\x81\x95\x92M\xdf\xd3\xb9\x81\xd2w\xe0%U&amp;8\x1d\xed\xa1\xa5\xc4\xdb@\x08\x0e=\xd2d:\xc3!\x881\xd2w\x03\x11\xc8\xcb\x1a\x95\xe5X"\xe7\xcf\x9f\xf3\x93\x9f\xfc\x04\x93e|\xfb[\xdfb2\x1d#\xe5\x97\x03\\_\x1a`y\xef9{\xf6\x9c\xbf\xf8\xb3?\xe7\xfc\xd9S\xcaL\xe2\xfa\x1e\xd77\xd0\xad\xe9\x977\x98,\xc7\xc5\x8eQ\xae\xb9w\xf7\x88b\x17uJ\xad\x18\x979\xd3\xbaf\\\xd5\xe4yF\x9ee\x98&lt;\xb1\xe1"\x06d\x8cHI\x8a^Zc\xb4"S`\xb2\x0c\xa5L\x12d\t\x81\x10\nb\x02W\x8c\x11m4QL\x19\x17\x92\xeb\xd5\x86!\xc0\xb2\xd9\xb2\xedz\x9a\xc1\x91\xe59Y\x96#\x81\x18\x021D\xfa\xbe\xa3\xd9n\x19\\\x87\xd0\x1a\xa15\xad\xf68\x1f\xd1\xc2\x82P8\xe7\xb9\xba:\xa7\xf3\x16\xa9\x14Y\x96\xf1\xcdo\xfe6u]})\n\xfa/\x05\xb0b\x88\xac\x16K\xfe\xfa\xaf~\xc4\xe7\x9f~\x82\xb7\x03F{r\xe1\x10X\xack\xb93+9\x9e\xee\xb3?\x1e\x93\x19A\x16=\x06\x8f!R\x1a\xcd\xb4*\x99\x94\x05e\x96@cr\x85\xce\xd3\xed/\x06\x10\xd1\xa3\xa4 \xdf\xb1\xef)\x1d\x92\x14\tR\x12"H!\x91J\x11\x81\xb0c\xf0C\x0c\x98&lt;\xa3\xb8s\xc0\xe9\xd1&gt;AH\xda\xbe\xc7#p1\xd2\xb6\x1dbG3\x88\x18\xb9\xbe\xbab\xbeX\xc0\xe1\x98\xed\xd0\xd3\r\x8e\xde\x07\xfa\xc1\xd3t\x8eM\xefh\xfa-\x992D\xd7\xf3\xec\xc9#V\xeb%\xda\x18\xf6\xf6\xf6x\xfd\xf5\x87/S\xf3m&gt;\xb7\x1eX1F\x06;\xf0\xd9G\x9f\xf0\xc9G\x1f\xe3\xed@\xb7Y\xf1\xf8\xd9\xa7\x8c\xeb\x0c-\x03\xf7\xf7\xf7\x98\x8dF\x8c\xf3\x82\xbdQ\x85\x16\x1e\xed-\x86\x88&amp;Pe\x8aI\x9eSe\x06\xa3%Z\x0b\xa4\x8a\x84\xe8\x881\x10\xf1\x08\x02Z(2\x19\xc8e \xd3\x8a&lt;\xcb\xd0J\'a\xa0\xf3@H\xf4\x05\xe0\tH\r]o\x896\xa2\x85 \xd3\x06\xa1\x15\xb5\xca\xd1:c\xf0\x165\x1d!\xe5\xae\xd1\x1d\x03\xfb\xf7\x0f\xe9\x0eG,\x97KLfh\xfa\x9e\xa6\x1d\xf0B\xb1\xed\x03O\xce\x17&lt;\xbeY\xb1v=\x93"\xa3\x1c\xd5l\xfa\x81\x9f\xff\xfc\xa7\xdc=\xbd\xc3\xfe\xfe\x1e\xfb\xfb{\xb7&gt;%\xdez`\x05\x1f8\x7f~\xceG\x1f\xfc\x8a\xcf&gt;\xf9\x18\xdb6,\xae\xaf\xb0\xdb\r\xf5\xf4\x88\xd7\x1f\xdeg\x7f:a\\\xe40X\x8c\x88dR\xa3\x83DG\x9f\x80e$\x95\x91d\xd2\xa3c@\x87\x88P\t&amp;H\x81@\xa2\x84D*I\xa6S!\xafE@E\x8f\x0c\x82\x18\x02\x04\x8f\x90\n\x05D\x04\x91\x88\x90\x12\xf3\x02\xa4&gt;\xa4\x1e\xa2\xcf\xc0Yt\x0cdJ1\xf4\r!\x06\xf2\xcc\xa0\xb5\xc6y\x8b\xc9\x04\xe3\xe3=\xfafK)$\xfb\xd5\x08]\x8c\xf0\xa2`ov@\xfc\xf8\x11\xef}\xfe\x98\xd5b\xc1k\xbf\xf5\xdb\x98\xa6\xe1\xf9\xf3\xa7\xfc\xf2\x17\xbf\xe0\xc1\xbd\xfb\x94\xdf\xfa&amp;\xd5-O\x89\xb7\x1aX1F6\xeb\r?\xfe\xcb\x1f\xf2\xf8\xf1#\x96\x8b9\x8b\x8bs\xa2\x1d\xf8\xad7^\xe7\xcd\x07\xa7&lt;|p\x8a\x16\x01\xdbt\x14\xa3\x1c\xdf\xb7x\xdb%pDPD\x94\x88(\x19\x91\x02\x04\x11!\x02\xc4T\x88K!\x91R \x85@\nR\xfd\xe4=&gt;Fz\x1f\x91\xca\x13#\xf8\xdd\xe7\x06@\x08\x81P\x8a("*3d:K\xc0B\xa0\xa5F\xc5D\x8b\xb8\xa1C\x0b\x81\'24[\x06\x01Y\xa61R\xe0\xfc@e\x04U\x96\xe3Qx\x11\x91\x99\xe2\xb5\xd3c\xacP4\xce1&lt;\xbb\xe0\xd3\x8f&gt;D\xd55\x93q\xcd\xa7\x9f~\xc2O~\xf4\x13\x8e\x8f\x8f\xb9\xff\xf0\xfe\xadn\xfd\xdc\xdeW\xc6\xae`\x7f\xfe\x9c\xcf?\xff\x94G\x8f&gt;\xa34\x9a\xb5\xb7\xdc?=\xe4w\xdf~\x93\xe3\xbd\x19\x856\xe0-V\x06\xe2\xd0##\x18\xa9\x91x"\x02\x1f\x056\n\x06\x04HE\x94\x82\xa8\x05JI\x94\xd81\xe6R\xa2\xa4D)\xb9\x93\x11\x83\xdf\xfd\xdb\x97\xec\xa7R\x04\xa9\xf1Q\xbe\xd4]\x05\x99\xa8\x07g\x03Z\x1a\xb4\x90\xb8\x00A\x99t\xddt\x12\x1f=Q\x08\x94\x86\x10\x03\x83K)\x11\x02\x99\xb0\x04\xe7\xf0^\x80\xc8\xc0I\xb2L\xb0Wf\xdc=\x98\xf0\xec\xfc\x02\x9b),\x9eg\xcf\x9eR\xe4c&gt;\xff\xe4S~\xf5\xc1\xaf8&lt;:d4\x1e\xbd\xeaG\xf4w\x9e[\x0b\xac\x18#]\xd3\xf2\xab\xf7\xdf\xe7\xec\xec\x19\xd6\xf6\xf4]G\x95\x17\x1c\xed\xef\xb3?\x9d2\xae*\x94\x10\xb8\xe0q1\xe2\xbd\x87\x18 \x04"\x01\x88h)AkP\x9a \x05^I\xa4\xd6Di\x88A \x10\x04!\x91B\x12\xa5$\nI\x14\x00\x82\x80\x00$R(\xa42\x08\xfd\xe2C#\x95B\xab\x88\xb3\x0e\xef&lt;\x0e\x08Q\xa2\x10\x08mv\xd1-u\x00\xa4\x88\x08\x11\x91\x04b\xf0\xc4\x18\x08\xd1#&lt;\x10\xd3\xedR\xc4@\xf4\x16\x11\x1c\x85\x16\xcc\xea\x92\xbbG\xfb\xf8\xeb\x05\xdb\x08\xe3\xb2\xc0y\xcf\xd3\'\x8f\xf9\xe8\x83\x0f\xf9\xc6o\x7f\x83\xf2E\x9f\xf3\x16\x9e[\x0b\xac\x10\x02\xcb\xc5\x82\xc7\x8f\x1fa\x87\x9e\xa1iX\xdf\xdcpg:\xe2\x8d\xfb\xf7\x99\xd452\n\x08\x9e\xe0&lt;\xc1Gb\x04\x81D*\x8d\xf7\xe9\xc6\xa6\x94\x04m\x88\xda\x10\x94H\xaa\x06m\x90BC\x88D\xa1@(P\xe9\xf6\x87L\xc59B \xa5AH\x95\x80\xa43\xa4\xc9\x90\xda \x84B(\x89R\x10\x95C\xb8\x17\x93&lt;\x8a4+\x06Q\x88\xf4\xb9;\x1aC\x12\x89\xd1\x83wx\xef\x88\xde\xa3w\xf5\x1d\xa4tK\x8c\x88\xe0(\xa5d\xbf\xce8=\x18\xd3\xf4\x1d%\x12\x84\xe6f\xd5\xd25\r\x9f\x7f\xf2)\x1f}\xf8+\xf6\x0e\xf6\xa8G\xf5\xab~T\xff\x9b\xe7V\x02+\xc6\xc8\xd0\x0f|\xf6\xe9g&lt;~\xf2\x88\xf5j\x81m\x1bf\x93\x9a\xd7\xef\xdfg\\\x95D\xe7\xf1!\x10cj\x06\xc7\x1d\xaf\x14cLi\x08\x81\x10\x12P\x08\x14Rj\x94Hi\x8e(\x89\x884\xa6\xa5\x14Rk\x94\xd6\x08\x95f\x04#\t\x1f\xe8\x0c\xa1\x0c\xd2\x18\x84\xc9\x13@\xa5\x06!\x89B\x10\xa3\'\n\x85\xca\xe5\xee\xdf\xca]\xe4\x0c\x08)PJ!\xe3.\xf6yOt\x8e \x06D\xb4\x08&lt;J\x8b\x1d\xb0]\x8a\xb2&gt;E\xb4L\x04\xc6\x99b\x9cI&amp;\x85"\x93\x86M\xd3a\x9b-=\x8eg\x8f\x9f\xf2\xd1\xfb\x1f\xf2\xf6o\xbdCY\x95\xb7\xf2\x86x+\x81\x050\xf4=\x97\x17\x17H)\xc8\x8da\xd3w\x1c\xcef\x9c\x1c\xed\x93)I\x08.\xa5\x91\x90\x94\xd5B$\x06\xdb{\x07&gt;\x90)\x89Q\x06\x95b\x18\n\x85\x96\xe9N\x87\x17 %Jk\xa4\xd2hmv\xc0\xda=\xa0\x98\x12)A\x12\x95\x00\xa1\x130\xa5!HED$\xe4\xf9\x08\x02\x84P(4QH\x82\x14D\x05R\xa5H\'bL\xfdEa\x89a\x97f\xa5\x00&lt;\x1e\xf0"\x10\xb5B\xc5@\xc4\xe2C@\nA\xa5%w\xf6\xa6l\xfb\x9e\x8f\x9f_\xb1]\xce1\x12LQb\x87\x81\x0f~\xf9\x01o\xbc\xf36\x07\x87\x07\x94U\xf9\xaa\x1f\xd7\x7frn%\xb0b\x8c\x0c\x83%\xcfs\xee\x9e\xde%\xc7\xb3&gt;{F\x99\x19\x8a&lt;#\x06\x8f\xf3\x03\x84t\x13S\nT\xae\x89\xc2\x10m\xa2\x06\xb4\xd1\x18)\x91"\xa2\x84\xda}\xc8\xf4\xa0CLS9J\xa7\xa8\xa25J\x1b\x84\x94\xf8\x18wuP\xdc\x15\xd9\x02)\x05(\x05\xda\x80\x94\x88(\x88!"\xc2\xae\x92\x0b\x02\x9f\xae\x8b\x08\xa5P\x99\xc1d\x19\x89\xa5p\xe9\xf3E\x04\x19\x89*"\xa2\x00\x11\xb0&gt;0\xc4T\x8f)\x052\n\x82\xb3H\x01F)r-(\x8dbTd\x9c\xec\xef\x93\xb7\x91\xf9j`\xddu\xdc\xdc\xdcpyv\xc1v\xbb\xa5(\x8b[G=\xdc:`\xbd\x18yo\xb6[\x02\x89\x1c\xed\xda\x8e\xc9x\xcc\xe1\xe1&gt;E\x99\xd3\xacW\xc8h\xd1\x924F\xa5\xcc\x0e\x18\x11\xa9\xc4\x8eE\x97H\xc1K\xf6\\\xca$C\x16\x08\xa4\x04\xb5\x1b"\x95rw\x13|Q_%eL\x02\x8eH\xe9T(\x85\xd4\n\x94D w\xd7\x82\x17\xff\x93\xa2\x9f\x90\x8a\xa8T\xba(\x18\x03f\x07\xf2\x08BK$/ZB"\xa5R\xe7\x19\xf08\xe5Q\x04\xd0\xa4W\x17@\x89H&amp;#Z)\xe4\xae\xe8/s\x03:\xc7\x87\x1e\x1bZ\xba\xae\xe7\xd9\xb3g\x9c\x9f]0\x99Nn\x1d\x1b\x7f\xeb\x80\x050\x0c\x03g\xcf\xcf\xd8\xae6t\xdb-\xcdz\x85\x12\x82\xe8\x1d\xc19\xb2\\\x13]\xba]!\x00\x95\x1e\x98\x8c\x12\xa2F\x08\x95\xf8)\x11QR \xb5~Y\x94K)\xd2\x03\xd3*\xd5IB\x10\xc5\x17@\x891\x12B\xc4\x07P\xfaEj\xfc\x02l\x91\x80\xf71\xd5C6\xf5\xf1^\xf88\xa4\x9b\xa7\xdcM\\\xfb\xc4\x8d\xedj/%\x04B\xc4t#\x0c\x1e\x94@\xca\x0c\x19#\xe0R\xca\x8d\x02\xe1#D\x8f\x10\x91&lt;+(\xf3\x92&lt;+0\xce\x13M\xce\x81\x1eA\xd6\xb0\xe9,\xcf\x9f&gt;\xe7\xf9\x93\xa7\xbc\xf1\xe6\xeb\xbf\x01\xd6\x7f\xf1D\xe8\xfb\x9e\xf3\xe7\xe7\x0cmG\xbf\xde\xe2\xb7=GU\xc5,/\t]C\x99\'&gt;\x8a\xa8PJ\xa1d*\xc6\x83\xca@\x17(\x9dT\xa0ZJ$\x11\xe7,.82-\xa92\x83P\n\x1f\x1c.z\x82P\xf8(Q!&amp;\xcd\x15\x8a\xc1\x0eX\xeb\xa8L\x81\xf3!E\x1e\rZ\xa6b[+\t*\xe2\x82%\xd5\xcd\x9e\xe0\x05RH\x8cT\xc8\xa0v7\xced6"\t\tT\xc2\x13\x84#*\x07\x12DH\\Z\x08"\xa9\x1c\xb4$\xa2\xf0\xde\x13\x88\xe8\xcc0\xaa-UaY\xb6\x1b\x941\x94U\x8d\x17\x12\x1bV\xf4C\xc3v\xbbI4\xcb-;\xb7\x0eX\x91\x88\xed-1\x04\x96\xcb\x05]\xdb\xb2?\xdb\xa3_-\x89!1KJ\n\x9cM\n\x83\x17\xc0\x92z\x17\xa9t\x86\xd1iF\xd0hE\xf4\x8e\xa1k\xb1\xed\x16\xeb\x1c[\xdf#E\xd2S\xe9,\xb1\xe4\x12\x08/\xd2\xda.\xfdE\xc0:\x87P:\xdd\xecDJ\xa5\xc4\xf4\x1a\x89ag\x18\x12\t1E0\x19v\x94\x87\x0f\x89\xaeP\x91\x18v\x0e6"Q\t\xd1;D\x88\xe9\xfb+\x05;&gt;M\xc5T\xf3!%\xd2\xfbtyP\x9a\xaa\x1a\xa8\xaa\x15\xf5\xe0i\x9dJ\xf7\x0e\x01B\xa4\x8b\xca\xfc\xe6\x86\xae\xeb\x18\x8dG\xb7\xaa\xce\xba}\xc0\x8a\x91\xbe\xef\x19\x06\xcbb\xb1`&lt;\x1as\xfd\xe4sN\xa6\x13b\x88\x94E\x89R\x01/\xd3\xe0Cz\x93%Ji\x844H\xa9A\x08z;0\xd8\x88\x12\t\x08B\xc9\x97\xed\x1b-\xf5.%%\xeb"\x81\'J\x81\x97\xa4\xfaK)\xa4T\x0c\xd6\xa2\x10\x18@\xeed3\x84\x90\xd2b\x92\x93\x12\x82\x04\x02A\x04BL \x93\xc1\x10\x91d\x99J\xdfg7iMp\x08\xe7\x101\xa4\xd4\xfek,A\xd8\x91\xa4\x9080\x04hi(\xab\x92z4\xa2\xec=\xddf\xa0\xccsf*\xa7\xf3\x9e!D\xce\x9e\x9fqsy\xcd\xde\xde\x1e\xda\xdc\x9e\xc7y\xab\x08\x90\x17n0\xeb\xf5\x86m\xb3\xa5\xaeGl\xb7i\x98AI\xc5\xc1\xe1!\xd69B\x88\x18mP:\x01@\x88T\x94\xc3\xaeG\xe7\x1c\xce\xa6z,\xf8\xc4\xc4\xbf\xb8\xf6\x07\x97\xda(\x84\x88H&lt;91\x8a]m\x15\x00\x892\x19Y\x9e\x7fQ\xc8\xbf\xd0_\xed\xb8\xb2\x10\xd2\xd7\x94B\xa0HE7/\xfe&gt;\x84D/\x04\x07D$ b\x92\xd9x\xebp\xcea\x9de\x18\x86\x14\x81w\x11R\xee\n{)e\x8a\xc2;\xb9N\x91\xe7\xe9\xe7\x17\x92\x18\x03y\x9e\xb17\x1b3\x9e\x8c\x10J\xb0^\xad\xb98\xbfH\x83\x1d\xb7\xe8\xdc\x1e\x88\xef\x8e\x1d,7\xd7\xd7\xe4Y\x12\xe3\t\x04&amp;\xcb8\xd8\xdb\xc3Y\x87\xd2\x81\x10\xd3-K\xb0+\xc0w\xe0\x10;\xd6[\x90nR*F\xd4N\x99\x10\xbc\'X\x8b\x8f\x01\xa1d2\x02\xd1\xc9\xbb\xe1\x05X|\x88(@\xef\xd8u\xe7I\xfd\xc5\x08\xde\x07\x90\x89\x86\x10\xe9\xdb \x85\xdc\xfdw\xbaM\x06^|\xff\x177\xbc\xc4sI\x91ZC\xf1%\xb1\n&gt;\x04\x84\x0f\x08)wE}z\r2\xbc\xf8\xb3\x044\xa3\reQ\xec\x86&gt;\x92\xf1H\x8c\xa9\xbf)b\x12\r.\xe6s\x9c\xbb]u\xd6\xad\x03V\x08\x81\xae\xedq\xd63\x19\x8f9W\x12\x9cCJ\x95B}\xb0h\xa5\x81@\x8c\x01!\x141\x8a4:\xef=\x89w\x92\xe8\x17uP\x04\x89\x07g\x11\xd1#c@\x03r\x17\x1dc\x8c;\xe6Z\x10b\x04!\xd2\xdf\x0bE^\x96\x89\x9f\x8a\x10\x82G\xfa_\xef\xcb\xa5\xaf\x1fw\xc4,\x02$\x01Ij\xe1\xa4 \x16_\x1a\xb0I)w\xf1+\xa9"|\x8c\xf8\xe0\x91^"$\x88\x10\xc0\'\xe0J\x01"\xbep\xa3I\xaa\x8a\xb2,\x19{I\xe7&lt;m\xbbE+\xc9hT#L\x81\xf3\x0eg\xed\xab~t\x7f\xe3\xdc:`\xbd\xe0\x8f\x16\x8b\x05\xe3\xd2\x90gI\xbd\xe0\x9d#\xcf\xc7D\x9b\x80 U\x8a$\x90\xa6g\xbc\x0b8o!F\x94\x92\xe8&lt;CJ\xf0\xce\x12\xbc\x05\xef\x88v@\x06\x87\x88i\xc0"\x90\xbd\x04\x15\xbbH\xe2\\@\x88\x804\x9a\xbc(\x18\xac%\xbc\x88\x86\xbb\x13B@\xb0\x8b.b\x17\x9f"D\x95"\x95\x14\xa9X{\xe9\xea\'$Q\xbe`\xd1\x14Q\x04bL\x11L\xe8DE\xa4/,PB\xa0dJ\xf1\xc1;\x86a\xa0\xef;\x8c\xd6\x94\x85 \xdaH\xd7\xf6\x88\xe0\xd1J\xd1\xd94\xf6\xdf4\r\x93\xd9\xe4\xd6\xb4wn\x15\xb0b\x8c8\xef\xe8\xfa\x8e~\x18\x98_\x9dQ(M9\x1a#\x95\xa2\xef{\xeaL\xe3\x9c%\xd3y*\xd8w\xa9,F\x8b\xf0\x02\x08\xa8\xdd\xc8|\xef-\xc1\xa6H\xa5E\xd2eI\xa31\xb9A\x19C\x90iX"M\x1d\xa74%P(\x9d&gt;\x8c1\xf8\x10_\xdeF\xc5n^1\xdd\x08\xddNK\xfa\xe2\x08$\x7f\x93p\x95/z\x8f\x11\xa2xq\xf3|\x91\xafE\xeau\xfatq\xc0;R\xeeM_\xf3\x85\xfcy\xb0\x03m\xdb0\x0c\x03\xce\x062S\x909\xcf|\xb3\xa1\xdf\xd1\x14\x9b\xcd\x96\xc5|\xc9\xd1\xc9\xd1o\x80\xf5w\x1d\xef=\x8b\x9b\x1b\xc0%]\x94sl\xda\x86\xa3\xd3\x13\xca2\':KD\xa1\xa4A*E\x08!\xe9\xcfw\x933"\n\x82\x8f(\t\x99T\xa0S\xabD\xc4\x80"b\x94"3\x05:+\x10&amp;C\x9b\xec\x0b!\x9f4\x98,OF!&gt;\x82u\xe9{8\x87\xf3\x16\x1d\r\xc1{\x8c1l\xd6-F\xf8\x9d\xebm\x92\xd5H\xa9w\x97\x89\xd4\xf4\x8e1&amp;\x9aBD\xd2=i\xa7\x80\x90\x02\x11B\xea\x12\x08\x01&gt;\xd5\x80\xc4@\x90\x02I\xc4\x07\xc70\xf4\xa9\xe0\x1f,\xb6k\x01\x85\x92\x89n\x91\x122\xa5\x89&gt;\xb2\xddl\x18\xfa&gt;]T\xcc\xab~\x82\xe9\xdc:`%\x96;ptp\xc0Y\xdf\xd0\xb7\x1b*ch\xda\x86\xfdQ\x95d"1\xa4\xa6\xb1HQ\xee\x053.\xc4\x0b%\xa8\xc0\xc7\xe4|\xac\x85H\rdb\xaa\x7f\xb4\x06e\x90\xca\xa0u\xf62\xa5\n\tR\xe9\xc4%\x91"_ \x01\xdb\x98\x0c\xef^\xd4pi\x905\xcf2\x9c\xdd"ej`\xa3\x92\nT\x10\xc9\x8c!\xcb\x0b\xacw\xbb/\x95$4I\xd4\x1cv\x1a,\x9f\x868^\xb4\x8d\x10;\x9aA\xec\xa8\x8c\xb8k?\xa5\x94\xaa\xa4D\xec&amp;|\xec\xe0\xd2dv^q\xb3\xdc\xd0\xb6\r\xcbU\xf2\xf0\xca\xc9_\xf5\x13\x04n#\xb0H`Y-W\x10"\xd3\xc9\x94\x83\xba\xc4o7\x80\xc0GR\xdf\xed\x8bON\xff/\x92\xb6\xe9E\xa1,DH\x05\xbf\x94dJ\xa2$\x88\xe0w\xc2&gt;E\x94r\xa7f\x10\xc9\xe9X(\xc4\x0bM\x96H\\W\xaa\x9dST\xf1\xd1\xe1\xbdOT\xc0\xaeU\xd3\xf5&gt;\xd1\x0e1\xa2\x84D\x1b\x85\xd4\x86\x00\x0c\xde\xe1\xd9]\x15C$ \x12\xd9*bj\xe9x\x9fn\xaf\xbb\xdaK\xaa\x9d\xe0o\xf7\xcb\x12\x83\xdf\x99\xbd\x05\xb4\xd6\x18\xa3\xe9z\xc7\xd0\xf7\xf4\xfd@0\x19"x\x86!Y2\xbd0\x87\xbb-\xe7\xd6\x01\xeb\x85\xa6\xea\xe2\xfc\x8c\x83\xc9\x98\xba0l\xb7\x1b\xe40\xe0\x82gp\x82q]!\x88\x04\xef\x88qW&lt;\x8b$\xe2\x13\xbb\xfaEJ\x85V\x82\xcch2cR;\xc6\xfb\xdd\xbf\x89\x84$\x13M\x14\xc3\x0b\x16\\\xa8Dp\n\xb1\xe3\x92\x0cR&amp;\x83\xb6\xb8\xd3K!\xd2\xdca\xd7\xb5h\x9d\xa5\xef/\x13 \x95\xd2h\x93\xa1\xb2]$\x0cI?\x1fEDH\x8d\x92\x1a%"\xc2;b\x00\xefS\xba\x97"\xd5qAz\x881\x8d\x95\x85\xa4\xcdR@n\x0cBvx\x97\x94\x12\x00}\xd7\xd1n;\xd6\x9b\x06]\x16\xf4}\xf7\x1b`\xfd\xe7\xce\x0bMU\xf0\x1e\xe7,C\x1fX\\]s8\x1e\xa1u\x86\xc94&gt;D\xc4N\xda\xc2N\xb0G\x84(\x12\x11\n\xe9\xaa\xefB@\x92\xe6\x03\x83\x10\xc8\xdd\x8f\x9bXw^\xaaL#\x02TD\xbc\\\x16 ^\xb2\xf9m\xd3\x12C\x92=\x0f\x89U\xa0u\x1ee\x14\xca\xa7\x08\x85R\xb8 h\x9b\x16\xeb\x05\xd5XSfEj\xf5\x90\xb4\xee\x82\xf4\x1aCL7B!M\x1a\xec E\xd2\x1d^\xbeh\x17\xc5\x88\xd6\x9aBH2k\x111\x10\x9c#\x92\x04\x8bZB\x1c\xecK\xcad\xe8\x07\xfa\xbe\xdfE\xbdW\xdf\xda\xb9}\xc0\n\x01;X\xf2"c\xbd^\x91M\xc6\x94U\x99F\xa7\x9c\xa3\x18\x8fq\x83\xddM\xd8\xec\xf8v!R\n\x0b\x00\x91$wJ\x92\x15\xef#\xd6\x86\x97\x94A\x0c\xbb\xec\xe9\x02R\xb9\x04\xa4(\xf0q\xd8\xd5X\nD\x1aP\r1rs3\xa7.K\xac\xb5\xf4\xbe\xc7\x19C\xd34\xbc\xfe\xdaC\x86\xd6\xe1\\ x\x92\xaaA\x1a\xa2\xf5\xac7[\x9an@H\xb3\xf3-\r()\xd0\x12\x14\xa0\x94\xc6d\x19\x0c\x81\x18\xdcK\x82\xf7\x85&lt;\xf9\xd7/\x9bI\x13\x96@\xa6\x94\xc4u\x03]o\x91EA^\xe4\xa8MG\xdb\xb6\\]_\xb3\x9c/9&gt;9A\xebW\xaf\x83\xbfu\xc0\x82\x94\x16\xca\xb2\xa0qIQ)\x84`\xbb\xdd\xd2\x94%bo\x9fQ=\xa2k78gS\xba\t!\x11\xa41\xec\x8aw\tB\xe2\xa2\xc7zG\x1f"\xd2\xaa\x97\xd1A\x10\xc94\x80J:*&lt;\x11\x8b\xce2\xb2\xac@\x93l\'\xa5\xd6XgY\xae\x06 Q\x18m\xd72\xf4=\xab\xcd\x9a \x15\xd69\x06\x1f\x08\xd2 \x8d \xfa\xc8\xd0t\x0c\xce\xe3\x88\x88\x98\x98\xf7\\\xa7\xd4\xacUj\xd3\xd4e\x81d\x17]v \x8e\xe1E\xd1\x1ewch\x0eo-\xc4\x17\xec}Rj\xd8\xa1O6\xe2*\x7f\xf9\xde\xcc\xafoX\xad\xd6\xe9v\xcco\x80\xf5\x9f\x9c\xb8\xeb\x89l\xb6[\xf2\xcc0\x0c\x03r\xb0\x8c\xca\x92\xa3\xc3C\x86\xde\xe2z\x0b\xd1\xef\xd2\xa6\x7fiZ\x0ba7\xc6\xa5\x18\xbc\xa5\xeb\x07|x\x91.w#^B\xa2dR|J&lt;\xca\x98\xdd\x0e\x9d\x88\t\xe1%M\x10\x02dy\xc9h4\xe1W\x1f~\xc0\xc1\xfe&gt;\xc1;\xfa\xbec4\xaa\xf9\xfc\xd1cdQ\x80\xd6\x0c.\xb0\xda\xb6\xac\xb6\r.\n\xaa\xd1\x98\xb2\x1eq5\xbf\xd9YUJ\x8cN\xc3\xaeJD\xaa\xb2`&lt;\x1e\xf1\xe6\xfd\x13\xea"OuU\x08/%6/\xd8Xc\xd2DP\x1f\x13\xd1\xdb\xb6-\xde\x07\xb2\x9d\x94:\x908\xb3\xe0\x1c&gt;\x04\xfc.-\xde\x86s\xfb\x80\x15#\xd6\x07\xaeW[N\xf6g\x10\x05Jj\x8a\xbc$W\x06\xbdk\xf8\xa2$^\x08:g\x19\x82\xc7\xec\x9a\xc6\xf3\xd5\x9a\xa6\xef\xb1\xc1a\xbd\xc7\xfb\xf0\x05\x15\xb1s\x92)\x8b\x9ci]2D\x81\xdf\xb6(@F\xa8`\'Y\x96\xe4YN\xdf@\x99+\xe6\xf3\xeb\x9d\x87\x83b\xb9iX\xf4\x8eM\xd7B9\xc2zO\xdbu,Wk\x06\x1f\xe8\x06\x8b\xdcI\x93\x9b\xaee\xb0\x96L\x1b\xea\xaaF\nA\xbbm\xe8\xba\x16)\x04\xdfz\xfd.\x7f\xf4\x87\xbfG]\xe6\x88\xbc\xc0\xba\xc8\xd06dJP\xe4\x19\xc6Hd\x0c\x8cb\xa4\xce3p\x03\xed\xb6#\x9f\x1e\xa0L\xc1b\xd3"\xb4aT\x14\x1c\xcc\xf6\xe8\x9b\xf67\xc0\xfa\xbbNR8\x84]\x8d#1JShCQ\x14(\xa5(t\xb2\xc7\xee\xed\x00J\xa0\xb4A\xc64`z}\xb3\xe0\x93\xcf&gt;g\xb9]#\x8cA\x99\xe4\xbb\xd0\xf5=C?`\xb4\xa2\xae+\xaa\xb2dR\x97\x1cL\x92\x9dQ\x9de\x08gqnH\x8ez1R\xd7\x15E\x91\xe3C\xaa\x8f../\xc9\xca\x8aM\xd73\xac6\xd8\x18\xf06\xb2\xde\xa4M\x15\xd69\xb6]\xc7\xc5\xd5\x15\x9d\x1dp\xde\xe1w}\xc8\xa2(\x19\xd5c\x94P\x0c\xb6G\xc4d\x01\xfe\xee\xfb\x1f`\x94\xe0\xdb\xdf\xfc\x06uY\xe2} /G\xf8\xa1\xc5E\xd0BB\x0cd\x99a6\x990\xaeG\\.\x1b\x86\xc1a\xb2@\xdb\xf6H\xa5\x19U5\xd19\xbc\x1d~\x03\xac\xbf\xeb\xc8]d\x11!\xd2u\xc9NQU\x05:\xd3/\xad\x84bL\xe3U\xfd0\xe0#\x0c\xce\xf1\xe4\xc93&gt;\xff\xfc\t\xcb\xcd\x96!\x04\xd0\x92\xb2\xae\xc9\xb2\x8cv\xb0\xac\xd6\xc9\xddo\xdbu\xc4\x18\xc8\xa4\xe0\xde\xd1\x1e\'\x87G\x88\xf1\x18\xd75\xb4"\xe2\xaa2\xc9\x88\xa5\xc4\x87\x80s\x9e\xbd\xc3C~\xf5\xf1\'\x94!\xe2#l\xb6\rC\x88\x84\xderu}\x8d\x14\x12\x17\x02\xd7\xf3\x1bn\x16KTf\x88|A\x1b\x0c\xdb\x868X\xc6\xe3)\x85\xd1\xf4}\xcf\xe2\xe6\x9a\xdew\xfc\xd5\x0f\x7f\xc4|~\xcd\x1f\xfe\xfe\x1fp0\xdb\x07\x1f\xe8\x9d\xa3\xc8\xd3b\xa8\xe8\x93\x00p2\x99\xb0\xb7\xb7\x8f\xbe\xb8\xa1\xe9\x1a\xa2)v\xf5X \xd8\x81f\xb5\xc4\xdc\xa2eP\xb7\x0eXB\x88\xe4}\xe0\x92s\xb14\nW$\xcd\xba\x8b\x9e\x10\x93.I\x1aC\x0ci\xf8s\xb9Y\xf3\xe1\xc7\x1f\xf3\xf9\xa3gH\x93\xd1{\x07J\xb1\'\x04E\x08l\xda\x8e\xe5\xa6\x81\x18\xd8v\x1d\xd6\x0eH\xefp]\x8b\xb5\x81f\xdb\xe0\xba\x96B\t\x86\xe9\x84qU\x92\xe5\x057\xcb%eYqpx\xc8\'\x9f}\x8e\xb5\x96\x80\xa4\xed:\xb6MGg\x1d\xdb\xcd\x06\xa9\x14\xd6;\x9a\xe5\x02\xe9\x1d\xb9\xd0\xf8\x18\x19\xd5#\xc6\xe3\t{\xb3}\x0e\x0e\x0f\xd9\x9b%1\xdev\xbba~s\xc3\xf2\xe2\x19\x92\xc0\xf9\xc5%?\xfb\xc5/\xf8\xddo\xff.\xa3\xa2H*\x08)\x01\x89\x102\xe9\xcfLF]\xd7dY\xce\xa6\x19\x08\xc11\xaa\nl\x04\xdb5)B\x874\xbb\xe8\x9dJ\xdd\x80Wxn\x1d\xb0\x88\x11\x19&lt;\x99\x94\xa8\xf4;O\x88\x01\xb9\xd3\xaa\x0b%Q\xda\xe0E\xf2Dxvq\xc9/\xdf\xff\x90\xe7\x17\x97\xc9|\xc3ZZgQ\xda\xb0X\xad\x89\xcb5\x9b\xcd\x86\xd5f\x8b R\x16\x05\xc6hT\x0c\\\xdc,\xe8\x06\xc7U]"\x9c\xa5\xda\xd9l\x9f\x1c\xec\':@\x89\x1d\xe9\xa9\xd9\xdb\xdf\xe7f\xbeb\xb1^\xb1\xddn\xd9l\x1a\xb6\xebmR,\xe8D|\xce\x8a\n\x9dgdU\x89\xd2\x8a\xa3\xc3c\x8e\x8eN8&gt;&gt;\xe1`\xff\x80\xe9lFU\x15I\xcc\xb8Yr\xf9\xfc)g\xe7\xcf\xd8n7\\^\xdf\xf0\x83\xbf\xfcK\xbe\xf9\xb5\xdf\xe2\xce\xf1\x1e\x01A\x88$o.\xe7\x88!\xadZ\x19\xd55\xcdN_\x9fk\x85\xf4\x1e;t\xc4V\xd1\\\x9c\xb3|\xfc\x84\xfa\xf8\x88jo\xf6J\x1b\xd2\xb7\x0eX\x02(\x8c\xa2\xcet\xb2\xcb\x8e\x1e\x17\\RTf\xa9]"\x95&amp;\x84\xc8\xc5\xf5\x9c\x9f\xfe\xfc\x97|\xfc\xe9g\x94e\xcd\xbd\x07\x0fSKE)\xa2H\x8b\x05\xac\xf7Lf3\xf6\xfb$/\xb1\xc3\x90\xf4\xe6"\xe2\x9dc\xd5t8\xef1\x04Bf\xa8\xdb\x8ev\x18^\xd6G\x83\x1d@\x08\xee\xdc\xb9C\xd3\xf6t\x97\x17\x04\xe7\xd0\n*\x93!"\x0c\xde&amp;\r\x986h\x93\x91\xa9\x8c\xe9t\xc6\xded\xca\xb8,\xc9\xa4$X\x87k[D\x961\xad*\xf6F\x15w\x8f\x0f\xc9\xdf\xd7,\x96s\xce\x9e\x9f\xf3\xe4\xd9S\xbc\xb5\x14\xc5w\xa9\xcb\xc3$\xcf\xd9\xc9n\x90$5\xe9h\xc4\xaa\xf3x!\xe8\xdb\x06k\x07\xb4\x1b\x08\xdb@\\-h\x9e&lt;!8\x8f)\n\xf2\xbaze\xcf\xf1V\x01+\xc6H\xb0\x16\xe9\x03\xca;\xf2\xc20\xd8\x81m\xbbM}7)\xe8{\x87\x0e\xd0\xfb\xc0\xe3g\xe7\xdc\xcc\x97\x1c\x1c\x1crrr\xca\xc1\xc1\x11YQ\xd2{G 1\xea\xce\xa7fr\xd7\xf7\\__sq~\xcev\xb3\xc6\x050:\xf9\xa8\x0b\xad\x11\x04LQP\xd4#\xf2\xb2&amp;/+\xaa\xaa\x02"ZiN\x8e\x0e\xe9\xfb\x81Hd\xb5\xd9\xb0Zo\xb0f\xc09Oo\x07\\\x08,\xd7\x1b\x9a\xf9\x02\x1b\x02e]3\xdd\x9b\x92e\x19yV\xb27\x9drz\xe7\x94\x07\xf7\xefqx\xb8OU\x14D\xe99::$+\x92Rc\xb3^\xf3\xf4\xd9SV\xef\xbc\xc1\xe1lL\x90Pd&amp;Mk\x130&amp;\x19\xc1\xc5\x10\x882 \xbc#\xc7S\x8fkN\xc6\x13Ng\x13\xe2j\xc9U\xdb\x90M\'dU\xf9\xcaj\xae[\x03\xac\x18#\xae\x1fX\x9c_pu\xf6\x9cv\xb3\xa6*M\x1a\xdd\xea\x93\xa48\x88\x9dR\x14\xc9r\xb3e\xb5\xdeR\xd65\xc7\'\'\xccf{\xe4YIQVh\xd7\xd3\r\x03\xfd`Y\xaf\x97,\x96k\xd6\x9b-\xeb\xcd\x9an\xd7\xa2\xb1n`\xd5\r\x8c\xab\n)\xc0\xe1_\xd6VEQ\xee\xb4TI\xeeR\x95%UU\xf3\xfak\x0f\xb9sz\x87\xc7O\x9f\xf1\xf1\xc7\x9f\xb0\x08+\x18&lt;A\t\xfa\xa6\xe1f\xb9d\xf0\x01\xb4f\xb3X\xf0\xe4\xf2\x0c\xa5\x14UQ1\xaaF|\xfe\xf81\x9f}~\xc4\xfd{\xa7\x1c\x1f\x1fQ\x96\x86\xa3\x93\x03\xea\xbaB)\x85\x16\x8aw\x7f\xf6\x0b\x1e?~\xcc\xf1\xde\x94\xc3\xbd\t1\n\x94V\xf8\x1d+\xdf\x0f\x1dM\xb3\xc1\xd4S\xea\xb2 \x17\x86;\xb3=\xbe\xf3\xf6\xd7\x18e%\x1f|\xf8&gt;\x8f\xe6K\xea\xd3\xbb\xcc\xee\xdeye\xb5\xd6\xad\x01\x1612l[6\x17\x17l\xaf.\xd1\xce\xd2o\xd6\xf4\xae\x07%i\x87\x8e\xde\rh"\xc1YV\xab\x05B\xc2\x9d;w\xb8sz\x8a\x14\x92\xa6i\x102\xb2\xdeny\xf2\xec\x19W\xd7\xd7\\]\xdfp}3\xa7m[\x02\x82\xa2(\xc8\xb3,\x11\xafB\x12\xbd\xa3o%\xa5\x16TZ\xd1vm\x92\n\x0b\x81\xed\x1d\xd3\xe9\x84\xba*\xd1Fq8\xdaG\x99\x0c\x81d1_\xb2m\x076\xdd\x92\xe5v\xcb\xa6ip2Y!\r.\xb0n\x1a\x16\xeb\x15EYr\xaf\x1as\xb9\x98\xf3\xec\xfc\x8c\x8b\xab\x0b&gt;\xfe\xf4\x13\x8e\x0e\xf7\xb9\x7f\xef\x88\xb7\xbb\xd79:9b:\x9e\xb2?\xdeC\x05x\xf6\xe83\x9e&gt;{J\x95gTe\x81\x11\x02\xa3\xd2\x0c\xa5\xf7\x01;\x0c\xe8b\xa0\xac*\x8e\'c\xbe\xfe\xda\xeb\xdc?&gt;\xe4\xf1\xc7\x9f\xf2\xfeO\x7f\xcc`*\xecv\x9b\x9a\xe6\xaf\xe8\t\xdf\x1a`\x05\x1fhW+\x86\xd5\x8a\xa3z\xc4\xdcv\xb4MC\x10\x01\xa93\xda\xbe\x05\x01J+B7\xb0Z\xad\xc8\x8c\xe6\xf0\xe8\x88\xe9d\xcc`-\x8b\xc5\r\xcf\x9f?\xe3\xc9\xd3\'|\xfe\xe81\x9b\xed\x16\x93\xe7h$\xde\x0e\xf4\xbdeTV\x14yA\x0c\x81&lt;\xcf\xe9\xb6\x1b\x86\xa6\'d\x9a\xb5\x96\xdc\\W,&amp;#\xc6U\xce8\xdb#7i\xf853\x86\xa2,\x88B1\xae\xeb\xa4\x17\xbb\x9a\x03K\xfa\xc1\xb2\xda4\xb4\x83E(\x8dG`]\xc0FA\xbfi\xd8k\x87\x9dg\x17t\x83\xe5\xe2\xfc\x9c\xe7\xcf\x9f\xf2\xf4q\xc9jq\xc5\xef\xff\xc1\xefQ\xe7%y\x91\xf3\xe6\xeb\xaf3\xadJ\x08=\xfd\x90\xb8\xb7\xa4\xc7JW\x99$\x0f\x8a\xb8\xaeAOJ\xee\x9e\x1cr\xba7E\xda\x9e~\xb3D\xf4=G\x87\'dZ\xc1+d\x1en\x05\xb0bL\x06f\xf3\xf3KV\x97W\xbcv\xe7.\xb9\x08\xcc\x9b\r\xd1ui\x86n\xe81\x99A\x06\x9f\xb4Nn@\t\x98\x8dGD\xefX\xcdo\xb8\xbe8\xe7\xddw\xdf\xe3\xec\xfc\x0c\xef}\xda@\xb1\xbf\x87\x0f\x11\xd7\xb6\xc4\xc1\x91\t\xc18\xcb\x99T\x15y\x95sq6\xb0\xd8\xac\xd8t\r\xa5\xf4l\'#\xda\xed\x06\xdbuH\x01\xb6\xef\xf1E\x86\xa9J\x94\x94X\xeb\xd0Z0\xdb\x19\xbf]D\xb0\xc3\xc0\xd0\xf7\xc4\x10\x98\xee\x8d1E\tHD\xa6Y.W4\xdb\r\'GG\x1c\xed\xef\x91\x1b\xcd\xb5Q8\xdb\x13\x06\xcb\xe3O?\xe5\xf8`\x1f#\x15wO\x1fR\xe5%\xf7\xef\x9d\xd2l\x97I=\xea\x1d\x19\x1a\xe7\x06\xbc\xb3\xe4\x99\xa6*\x0b\xacs\x94\x85ao6%\xda\x01\xeb{\xea&lt;\xe7h\x7f\x1fS\x96Ij\xf3\n9\xad[\x01,H\xbc\xd5\xf2\xe2\x92\x8b\'Oy\xe7\xce)\xa3\x07\x0f\xb9X\xcf\x19\xce\x9e\xd0t\x9b\x94\xca\xe2\x17M\xdb*\xcf\xc9\x0bC\x95g4\xcd\x96\xab\xb3\xa7|\xf6\xd1\x07h&lt;o=\xbc\x8f\xd6\x8a\xa2()\xca\x92\x10`\x7f&lt;\xa1\x1b\x1cU]S\x14\x15yU\x92\xd59\x9a\x80\xb0\x03\xa1k\x18W\x15\xd3QEU\xe4h\xc0\xf5\x1d\r\x81L\x0b\xea\xaa$\x1aC\xb0\x0e\x19aRW\xdc\xbfs\xc2\xf5\xe5\x05\x17\x12r\xad)\xca\x8a\x83\xfd}\xf2\xb2B\x08\xc9\xa9V8\xeb(s\xc3\x9d\xe3\x13\xee\x1e\x1f\xa7\xf6M\xfc\x16RDF:\xf2\xfe{?\xe7W\xef\xbd\x87w\x16\xe1\xe1\xfe\xdd\xfb\x8c\xaa\x82"\xcb\xf0J\x92\xe5I\xe4\xe7v*\xd7\xcch\xb4\x96X\xeb\xd1J\x92iAp\x03"\x08&amp;e\xc1\xac\xae\xe8bD\xbf\xe2\xa5\x9a\xb7\x06X\x00\xd19\x96\x17\x97\xb8z\xc4\x83\x87w\xc9\x0b\xc3\xa3\xcbg;\xdb"\x8bs\x96Z\x17d&amp;\xa3\xca3T\xa6P\xd1\xd3\xac\x96\xdc\x9c\x9f\xe1\xdb-\xdf\xf9\xed\xdf\xe6\xf5\xd7_G\x08I\xdb\x0f\xf4\xc3\x80\x90\x9a\xae\x1f\xb0&gt;0\x1aO)\xca*q^\xc1\x91\x11\xa9\x95`\xd8\xac8\x9c\x8c89&lt;\xa0\xd4\x9a\xa1m\xe8\x9b\x8c\xe8\x06Z-i\x8b\x12-\x93\xdb\x96\x16\x90)\xc1\xe9\xc1&gt;\xfd\x9bo"\x81\xf3\xebk\xfa\x0023H\x01w\x0e\x0f(\xaa\x82\xb2(\x19U\x15\xf7\xee\xdc\xe1h\x7f\x9f\xdcHf\xe3\x11\xe3Q\x05\xfd\x86Ye\xf8\xe4\xb3\xcf\xd8\xdf\xdbch\x1b\xae\xce\xce\xe8G\x15\x93I\xc5\xa8*\xd1Z\xeed\xcc\x89e\xf7~\xa0m7i\xaf\xb5\x8cD7\xa0H\xbd\xd4\xe8&lt;U\x96\xd19\x87\x88\xfc\x8d\xc9\xa2\xbf\xefsk\x80\xa5\xb4f&lt;\x9b\x12\x9deuuE\xf1\xf0\x94iYRf\x19*\xd9\x19\x13v\xf6DZHFEN;\xb4l\xe6\xd7\\\x9f?\xa3\xce4\xdf\xfe\xfa\xd7\xb8\x7f\xf7\x0eG\xb31yQ\xe0Bd\xdb\xb4l\xb6-JD\xa2\x90\xe4\xb9\xc6(@j\x18\x1cu\xa6\x19\xe5\x19]o(\x8d\xa6\xca\x0c\x99\x94\x08\xe7q}\x8f\x91\x02\xdf[\xfa\xa6\xa5\xaajLQb\xa4B\x84@e\x04\x0f\xef\x1c\xd15kl\xdf\xd1\xd9$\x06\xf4\xce\x92\x97%\x99\x12\x94Z2+r\x8e&amp;c\xee\x1e\xcc0R\x10\xbdes}\x89t-o&gt;x\xc0;o\xbdAVTX\x1bX\xad\xd6\xbb\x11|\x80@\xdfv87$s\xdd\xdd\xa8\xbe\x0f\x03eU2\x99\xd48\xdb3\xb8\x01\xa9s\x8c\x94\x8c\xaa\x92u3\xec\xca\xabW\x87\xac[\x01,!\x04\xcah\xc6{3rch7k\\\xd3\x91\x95\x8a\xa3\xc3\x03\x1em\xe78g\x93v\xdcy\xfc0\x80w\xb8\xbe\xa5\xef[t\x0c\xbcv\xef\x14\xa3\x15\xdb\xd5\rW\xbe\'/K\xac\xf5\xb8\x10\xb1.\xe0\x07\x872\x19\xbek\xd9,\xe6\xd8\x10\xb0\xce\xd15[\x0c\x91\xac*\x99\x14Eb\xfcw\xa3bx\x8f\xdc\xa9XDH\x1f\x92\x04l\x15#\x19\x81\xe3\xd9\x88\xcd\xc1\x8c\xcb\xe7\xcf\xe8\xd6+\xbc\x0b\x08\xa5(\x8b\x8c\\\x92,\x1f\x8d\xa4\x9b_q\xd6\xac(\xf3\x0c\x89\xc7\xf6=wN\xf6)\x8d\xc6\xf9\xc0\xd04\xec\x1f\x1c3\x1bO\x912b\x8c\xc4\xbb\x816x\xdc\xe0_\xd8p\xa1\xb5DkIU\x17\x14e\xce\xcd\xcd5\xebUGu\n\x85\xce\x99\x8c\xc6,c\xf3\xaa\x1f\xe9\xed\x00\x16$c\x8f\xac,(\x8b\x02\xd1\xb4\xb8\xaeC\xe5\x15\xa7\xc7\xc7\xc8G\x1f\xb1\xd9n\x80\xddZ7\x1f\x88\xce#\t\xcc&amp;c\xaa,)5\xbb\xa6A\x06\x8f\xef[\x9a\xbeg\xb5\xda\xd0[\x87P\x8a\xa6\xb5D$e=\x02\xa90\x99AII^V\x1c\xd4#J\xad(\xb5 \x131\xa9:\x85N\xa6\xb9\xce#\x82Hn\x80\x01\xa2u\x04\xe7\xd1Bb\x14\xcc&amp;5\xa3\xaf\x7f\x8dI]\xf1\xd1\xa7\x8fx\xf4\xe4\x197\xcb\x15\xddr\xc9\xd07\xb8\xed\x1a\xda-\xeb\xa4~f\\\x97\x14F3\xaaK\x16\x17\x8e\xae*A\t\xaa\xd1\x04o\x87\xa4\xbb\xf7\x01;\xa4\xe2\xbc\xae\nb\x18\xf0\xa4nAQd\x94UIY\x97\x84\x18x\xfc\xe8s\xc2\xd5\x92}Sp\xe7\xe8\x0e\xd5xL\x19v\x0e\x84\xbf)\xdeITB\x96\x91\x159y\xf4\x10=m\xb3Ad\x1e\x85\xc3Z^N\xb5h\xad9&lt;\xd8\x075e\x18z\xe2x\x8c\x88\x9e\xe8\x1dE\xf6\x06\xeb\xf5\x8a\xf5j\xcd\xfex\x8cs&gt;E\x04\xe7\xf1&gt;"\xa4"\xcfK\xa6\xd3\x19B\n\x86~ z\x9f\xec\xb0\x87\x1eo\x074\n\xa34\xd1\x05\xa2\x8f\xc8(\x90\xa8$m\xf6\xe9\x02\xa1\xb5"zI\xdf\xf5dy\xc1[\xaf\xbf\xce\xf1\xf1\x1d\xdey{\xc1\xf3\x8b\x0b\xae\xe7\x0b\x1a\xdb3\xf4=y\xa6\xd9\x9fN\x19\x95\x15FI\xdc\xd0\xd2\xf7\x1d\xeb\x9bk\x0e\x8f\x8f8:\xbd\xc3\xfe\xc1A\xbaM\nE\x8c\x0ek#C\xdf!\xa3C\x84d\xd6&amp;\xa3\xa4,r\xc6\xe31\x93\xd9\x14)a\xb3\x98\xc3\xbaa\xb3X\xd1\x14\x13T5ev4B\x95\xe5\xae\x91\xfd\x0f\x1cX/\xd2\xa1.r\n\x91&amp;\x8d\xcf\x9e\x9d\xf1\xc4.\xc8\x85\'\xcb\xf2\x04\x1e\x11Q\xb9&amp;\x0ci\xf2\xb8,J\x94\x80\xbe\xdb\x92\x17\x19e\x961\xca\x0c\xf7\x8f\x8f\x91B\xd0u\xdd\xce\xd9%\xee\\\xfb\x041\xa4\x112\tX\x19\xe9{h;Kk\x87t\xebC#]\xf2\xa0\xd2Q\xa0vc\xfc!\x82T\x02\x85Bz\x8d\xb5\x8af\xd7\x82\x92J\x93\x17%\x0f\xde\x98r\xf2\xe0\x1e\x8b\xd5\x9an\xe8q\xce"\x85`2\x19a\x94N\x0b\xcd\xa3g1\x9f\xd3]]S\xd55U=A\xea\x1c\x95\x17\x89\xa7\x0b\x03BE\xdae\x83\x1b\xda4H1X|\x94\x04\xebw\x1e\xaaI\x91\xba?\xae\x91d\xb8\xb6g\xb3\xd80.\xf6\xd8\x7f\xed\x01\xd9d\x92\xe6\x00^\xd1\xb95\xc0\x02\xd0\xc60\xdd\xdb\'\x9b\xdf\xb0X\xaex\xfa\xec)\xbfZ&lt;%;9Hk\xe0\x94z\xa9\xc5\x12;\xbfP)\x04\xc6h$eZ\\\x99\x19\xa4\xc9\xc8\x8c</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45489</v>
+        <v>45492.6721412037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>794590</v>
+        <v>795784</v>
       </c>
       <c r="B18" t="n">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Artur Jorge</t>
+          <t>Martin Varini</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>b'\x89PNG\r\n\x1a\n\x00\x00\x00\rIHDR\x00\x00\x00\x96\x00\x00\x00\x96\x08\x06\x00\x00\x00&lt;\x01q\xe2\x00\x00\x00 cHRM\x00\x00z&amp;\x00\x00\x80\x84\x00\x00\xfa\x00\x00\x00\x80\xe8\x00\x00u0\x00\x00\xea`\x00\x00:\x98\x00\x00\x17p\x9c\xbaQ&lt;\x00\x00\x00\x06bKGD\x00\xff\x00\xff\x00\xff\xa0\xbd\xa7\x93\x00\x00\x00\tpHYs\x00\x00\x0e\xc3\x00\x00\x0e\xc3\x01\xc7o\xa8d\x00\x00\x02\xa6zTXtRaw profile type xmp\x00\x00H\x89\xadVI\xb2\xe3 \x0c\xdd\xeb\x14\xff\x08 \x81d\x8e\xe3\xf2\xb0\xeb\xaa^\xf6\xf1\xff\x13\xd8\x89\x13\x8f\x8b6e\x1c\x82\x86\xa7\x87$\x9b\xfe\xfd\xf9K?\xb8"\xe7H2X\'\xbdu:Z\xd0Q\xb3%\x8d\x1c|\xad\x83N&amp;\xbe\'#\x9bFM:+k\x96\xbe\xfd\xff\x92\x9e\xd9d\xa2\xd0s\xf8\x1c0\xcdPR\xe93\xa7\x94\xf4\xcbl\xdbs\xd3\x9d%\x8c =L\xcdd\xf5\xe2\xc9 \xc5\x93\xce\x104\x9e%J\xf1\x81_A\x183c\x1e\x9b\x11&lt;\xc5\n\xcc\x02\x8du&lt;\xba\x03\x16rX\xa1\xbf\xc2\x05P\xd9D\x05\xebb\x01\xea\x05!N\xc0\xb9\xec#hV B\x9c\x0e\x94mol\x1b\x12\x94d\x1f\x10\x0cg\x18\x1cx\xa25\x18\x17\xc4\x9c\xa1\x98\x9dF\x87\x0e\xc8\x08\x92\'Y\x08=\xc2]\x1d\xf4\x96\x08p\x93+\x1f\x8b\xbd\xc2\x8b:\x00\xf9\x85\x0c\x01\xf4\xa0e\r\xa3\xae\xa2Nj\x1eF\xa5\x12\x0c\xa9\x82\xd6\xec\xa6\x1cW\xcaU\x86k,\x11*\x86[\x10\x1a\x07\x17\xc6\xac\xd8B\xae \xa0\xc0#|E\x19x~Q\nw\xc7\x88\x9a\x0c\xdd\x01o\xec9\x0b\xd7$\xd0\xdb\xe7\xf11?M\x0e\xba\xce\x8e\xa7\xc9\x91"\xd5\xac\x801\xe5}\x96\xd4\x9c\x9d@\xf4K\xc6\r/.\'\x15&lt;GH\xa1\n\r\x99\xdd2%\x9cgJ\xda\x18\xaa|Bm/I\x1fE*\x887^g\xd4\x92,\xcb\n\x1d#"n\xe8QN\x06\x8ep\x16\x08,s%n\xaei\x8f\xcd\x87\x18\xfdx29\x03H9\x1c&gt;J\x18\x95.\x89G&lt;3f\x16\xf1\xe3?R{k\xad\x8e\xe8\xc2S6P\x9fJu\x82\x96\x82\x84\xcd@\x9e\xe1\xa6\xc0M\xc4H\xde\\0G\t\xa4\xfe\xb3\x88I\x07W\xa3b\x13\xe9\x17+\x1aD\x87\x1d\xefLz\x80l\xe3\xc6Q\xd1M\xfc\xe8c\x0b\xa6\x0c\xe3~+\xe6R\xd1D\xb8/Xu\xd22\xfbL\xf5\x9e\xe6\xec\x95\x99\x01\xbc\xcb\x89\x963s\xaaw\xf0\xb7\x82\xab\xdcY\xd9\xd2\xb3\xda\xbe\xcb24\xffgy\xfbi\xf2\xa8\xbc\xe9y}\xff\xa7\xe6o\xe1\xf8}\xb6\x166\xad\xef\xcfw57\x95\xa5\x98\xe5\xbc\x98\x17\xd3\xa0\xc3\xc1\x90v\xde{\xd1\x89{\x9d\xbd\xf7z\xebM\xc5z\xc3\xba\xf2\xf2!\xbeJ\xef\r\xd3\x1d\x89O9\xa4;\x12\x9frH\xed;\xe4\x9c\xc4\x03\x0e;\xd4~\xf8n\x88t\x00\xb9\x99\xde6\x0c\x04\xefY\x8e1\x80M\xf17\x9f\xa9\x7f\xfep\xe7=\x0c\xefA\x90\xedM\x0c7\x97\xca\xd6\x8d\x91\xbb\xf7\xda)\xc9\xdfj7\x86\xda\x07\xd5\xa9\xbf\xdd\x17\x1d\xbe\xcf~\x011\xf7@WN\xa3\x8e\x84\x00\x00n\x1cIDATx\xda\xec\xfd\xe7\x93eYv\xdd\t\xfe\x8e\xba\xf2)\xd7\xe1\xa1R\x17\xaaP\n\xa8"\x04\x05H\xb0{\xc6\xda\xba\xcd\xfa\xcb\xd8\xfc\xa136m\xc6\x19\x1b\x12$\xd8\x00Y\x00J\xa0DV\x8aJ\x19\xd2\xf5\xd3W\x1d5\x1f\xce\x8b\xc8\x02\xd8 \x87\xddM\x84g\xa2\x8e\x99W\xa5Ex\xb8?\x7fw\xf9\xde\xfb\xac\xbd\xf6\xda"\xc6\x18\xf9\xcd\xf9\xcd\xf9?\xf9\xe8W\xfd\x02^\xf5\x891\xe2\x9d\'\x84\x80\xf7\x01\x1f&lt;\xd1\x07B\x0c\x04\x1f\x08!\x10\x01!@J\x89V\x1a\xa5\x15Zk\xa4\x94(\xad\x10B\xbc\xea\x1f\xe3\xd6\x9d\x7f\x90\xc0\n!`\xad\xa5k;\xb6\xeb-\x8b\xc5\x82\xc5|\xc1\xf9\xf9\x05\xd7W\xd7XkQJ\xe1\xbc%\x84\x00\x08\x84\x00\x84\xc0\x18\xc3h4b6\x9bqpx\xc0\xc9\xc91\xe3\xe9\x84&lt;\xcf1Z#\x95DJ\x85\x94\xe2\x1f4\xe0\xfeA\x01+\xc6\x88s\x8e\xe5|\xc5\xe3G\x8f\xf8\xe4\xa3\x8fy\xfa\xf4)W\x17\x97,W+n\xe6\x0bn\xe6s\xfa\xbeG\x08A\x08\x9e,\xcb(\x8a\x02!%]\xd7\xe1\x9c\xa7\xae+\xf6\xf7\xf6\x99\xce\xa6\x1c\x1e\xecstt\xcc\xc1\xd1\x01\xa3\xd1\x98\xb2(\x98\xed\xedqt|\xc8d2&amp;/r\xa4\x94\xff\xe0@\xf6\x0f\x06X\xce9\xb6\xdb\x86\xa7\x8f\x9e\xf2\xee\xcf\xdf\xe5\x83\xf7\xdf\xe7\xd9\xd3\xa74M\xc3j\xbdb\xb5\xde\xe0C@g\x9a(\xc0\xda\x01\xa5$\x91\x88\x8f\x01?\x0c\xcc\x17s\xe6\xf39\x11\xa8\xeb\x9a\xb2,)\xf2\x82\xba\xaa\xa8\xeb\x9a\xf1x\xcc\xc1\xc1\x01wO\xefrz\xf7\x94\xc3\xa3\x03\xdez\xfb-\xf6f3\xf2"G\x1b\xfd\x0f\x06`_y`y\xe7i\xda\x96\'\x9f?\xe6\xbd_\xbe\xc7\xfb\xef\x7f\xc0G\x1f\x7f\xc2v\xb3A+\x851\x06m\x0cR\n\x94\xd6TuM\x08\x9e\xae\x05dd\xbdY\xe0W\x01\xef\x02\xeb\xf5\x9aM\xb3\x05\xa0\xeb\x1br\x93!\xa5d:\x99"\x95\xc2Y\xcbt6\xe3\xfe\xbd\xfb\xdc;\xbf\xc7l:\xe3\xb3O&gt;c&lt;\x19\xf3\xe0\xe1C\x1e&lt;\xbc\xcfd:\xa6\xc8\x0b\xa4\xfajG1\xf1U\xbe\x15\xf6]\xcf\xd3\'\xcfx\xff\x97\xef\xf1\xb3\x9f\xfd\x9c\xf7\xde{\x9f\xeb\x9bk\x9csh\xad\xc9\x94\x06\x04\xce;Bp\xe4yNQdX;\xb0Y\xaf\xb9Y\xdcp}sC\x08\x01\xad4\xc3`\t1`v@\xf4\xcec\xed@]\x8f\xa8\xaa\n)5BI\x8a\xac\xe0\xe8\xf8\x84\xe9tF\x8cP\xd7\x15\xa7wN\xb9w\xef.UU\xf1\xe6[o\xf2\xc6\xdbo0\x9bMQJ\xbd\xea\xb7\xe9\xbf\xc9\xf9J\x02+\x84\xc0z\xb5\xe6\xbd_~\xc0\x8f~\xf8#\xde\xfd\xc5/x\xfc\xe4\tM\xd3\xe0\x9dGH\tD\xbaM\x83R\x92&lt;\xcf(\xcb\x82&lt;\xcf\xc8\xb2\x0c\xa35\x82\xc8f\xbb\xe1\xea\xea\x92\xe5r\x89s\x8e\x10&lt;1F\xf2&lt;\'\xcbs6mC\x8c\x91f\xdb\xa2\xb5\xe1\xf0\xe0\x90\x08\xb4mGYV\x14eMYW\xdc\xb9s\x07\xad5D\xd8\xac\xd7\xbc\xf1\xc6\x1b|\xef\xfb\xdf\xe3\x0f\xff\xc9\x1frz\xf7\x04\xad\xbfz)\xf2+\x97\n\x9du\x9c\x9f_\xf0\xf3\x9f\xfe\x9c\x1f\xfc\xc7\xbf\xe0\xfd\xf7\xdfg\xb9Z2\xf4\x03\xceZ\xbc\xf7D"\xceZ6\x9b\rR@Q\x148;\xd0iE\x96\x19\xc6\xe31\xb3\xd9\x84\xd9\xf4\x94\xdch\x82sl6kTf\x00\x101\xa2\x812\xcf\x12E\x91Y\x94PtM\x83\x94\x8a\xba(\x00\xd8n\xd6t]KY\x14\x9c\xde\xbd\xcb0X6m\xc3_\xfd\xf8G|\xfa\xf9\xe7\xac\xd6k\xfe\xf8\x8f\xff9\xf7\x1e\xdc\xa3\xc8s\x84\xfc\xea\x80\xeb+\x03\xac\xe0\x13\x85\xf0\xf8\xd1\x13\xfe\xe3\x7f\xf8\x01?\xff\xf9/x\xfe\xfc\x19\x8b\xd5\x92n\x17\xa9B\xf0@*\xcc\xdb\xaeE\x19\x89@\xe0\x82c\xddn\x101\x90\x9b\x0cDD*p6g6\x9b\xa0\xe4C\x96\x8b\x05\xd6\r\xb4MC\xbbm\x88\xdeQU\x05\xeb\xf5\x06\xa35\xe3z\x9c\xdeP\x9d1\x1eO\xd8l6\x98,#\x02\x9b\xd5\x12wtD$\xa2\x8dayy\xc1z\xb3\xe1\xff\xf1\xff\xfc\x7f\xb1\x98/\xf9\x97\xff\xdd\xbf\xe0\xcd\xb7\xdfd2\x19}eR\xe3W\x02X\xce9\xd6\xab5\x1f~\xf0+~\xf8\x97?\xe4\xe7\xbfx\x97\xcb\xeb+\x9a\xa6I\x9c\x94T\xf8\xe8\xb0\xfd@\x88\x9e\x10#B\n\x82\x88dZ\x83\x00g\x07\x08\x1e$l\xbb-\xc8\x88Q3\xf6\x0f\xf6\xa9\xca\x12\xa5\x04\xab\xe5\x02\xe1}z\xd3\x04X\xef\xc9\xa5$\xc4\x88\x1d:\xa4\xd4\x04\x1f\x18\xf2\x9cz4\xa2\xa8*\x8a\xa2\xa4\x1f\x06.\xce\xcf(\xab\x9a\xba,\x99M\xf7\xb8\xb9\xb9\xe6\x97\x1f\xbc\xcfr\xb5\xe6\xe2\xf2\x92\x7f\xfaO\xff1\xdf\xffG\xdf\xe3\xce\xe9qJ\x9b_\xf2\xf3\xa5\xfe\tb\x8cX\xebx\xfe\xf49\x1f|\xf0!\x7f\xfe\xe7\xff\x81\x8f&gt;\xfe\x98\xa1\x1f\x98\xcf\xe7\xb4M\x83\x96\x8a"\xcb(\xf2\x9c\xcdfE\xd7uhc\xe8\xfa\x96@@Te\x8a\x12! \x01%\x04\xdeZ\x9a\xcd\x86y\xf0\xb8\xa1G\n\xc1\xd0u\x08\xef\x19\x959\xdeh\xda\xb6\xa5k;&amp;uMf2\x06\xe7\xc8\xb2\x8c\x10\x13\xff5\x9d\x8c1E\x81\x90\x82,\x1f\xb1X,\x91R2\x1e\x8f\xa9\xeb\x11n\x18h\x9a\x9e\x9b\xf9\r\xff\xdf\x7f\xf3\'&lt;~\xfc\x84\xf5r\xcd?\xff\xe3\x7f\xc6\x9d\xbb\'\x18c\xbe\xd4u\xd7\x97\x16X!\x04\xfa\xbe\xe7\xd1\xe7O\xf8\xf1\x8f~\xc2\xcf~\xf6s\x1e?}\xc2r\x99\xc0#\x10\xe9\xa6\x86 zO\xd7\xb6h\xad)\xcb\x92\xb6m\xb1}\x8f1\n\x9cG\xc4\xf4Fd\xdaPd\x19\x99\xd6\xc4\x18iW\x1b\xba\xcd\x86q]3\x19\x8d\xc8\xeb\x1a\xa3\x14}\xdf\xb1\xf0\x1e\xe7\x1c\x04O\x99\x19\xa4\x90\xe8,\xa3,K|\x14\xb4}\xcb\xfe\xc91]\xd7qs=g\xb1X0XGYV\xd4U\xcd\xf1\xd11!\n6\xdb-\xc30\xf0\xc1\x87\x1f\xe2\xad\xa3i\x1a\xfe\xf8\xbf\xff\x17&lt;|\xed\x01y\x9e}i\xc1\xf5\xa5\x04\x96\xf7\x9e\xc5|\xc9G\xbf\xfa\x84\x9f\xfc\xf5\xcf\xf8\xe4\xd3Oy~v\xc6|\xbe\xa4\xd96H!\x881`\x8cB+M\xb3\xe9\xe9\x87\x96a\x18\xc8\xf3\x8cQ]\xa2\t\x14F\xa1\xb5B+\x89\x96\x92&lt;3TEN\x9ee()\x91!\x00\x81\xf1hL]U\x88\x10!F\xca\xbc\xa0\xd8\x9b1\x1d\xd5\\\xdf\xcc\xf1\x80\x90\xe0\xdd@f\xc6\xa8\xac\xc0\x03\xbd\x1d\xa8\xc7c\xb6M\x8bXJ\x86\xae\'X\xc7v\xb5\xc66-JJ\xa6\xd3\x19\xd6Z\xb6\x9b\r\x1f\x7f\xfcIJ\xc9D\xfe\xf9\x1f\xff\x11\xf7\x1f\xdcK\xbf\x1cJ\xbe\xea\xb7\xfc\xbf\xfa|\xe9\x80\x15B`\xb5\\\xf3\xd7?\xfe\x19\x7f\xfa\xa7\x7f\xc6\xb3\xf33\xb6m\xcb\xc5\xc5\x15\xb6\xef\xa8\xcb\x02\xa3\x05\xcb\xc5\r\xebe\xba\xf5\xf5mG\xdbl\x89\xc1!|\xc1\xa8\xae\xd8;\x98\x90\t\x81\x91\x82L+2\xad(\x8c"7\x86\xdch\x94\x80\xe0\x1ceQQ\x14\x05ZI\x88\x10\xbd\'j\r\xc5\x08\xef=\xe3\xe8h\x07K\xe7#^k\xa2\x968\xe1\x19M&amp;\x8c\xc6#\xac\xf3)\x1dj\x8dD\xd2o6\x94yA\xa956\xcb\x89J!\x8a\x82Q\x91\xe3{\x8bm[~\xf8\x83\xbf\xa0\xef:\xbe\xff{\xdf\xe3k_\xff\x1a{\xfb{_\xba\xa2\xfeK\x05\xac\x18#\xdb\xf5\x96_\xfe\xfc]\xfe\xfd\x9f\xfe\xfb\x94\xfa\xd6\x8b\xc4O\xf5-U\x96\xb3?\xa9\xb9\xbe&lt;\xe3\xe6\xec\t\x04\x87\xd1\x1a\x05L3IU\x8c\x99M\'LG#\xca&lt;#W\x1a-\x05FI\x8c\x12dJ\x92)\x85\xd1\n-%F\x8a\xc4Ye\x19\x90"\xa5w\x9e\xe0\x03B@\x9e\xe7\x1c\xefM\xd84-\xcf.\xafX\xb6=1zz\xef\xf1\x9b%\x83\x92\x08\xa9\xa8ED\x8cr$\x82q&amp;\xc9t\xc4\xe4\n\xe7\x05AF\xb4V\x88\xbc\x84\xaa@ \xd8\xacW\xfc\xe4\xc7?b\xb5Y\xd1\r=\xdf\xf9\xeew\xd8\xdb\xdbC}\x89"\xd7\x97\nXv\xb0|\xf4\xe1G\xfc\xbb\x7f\xf3\xefx\xfc\xf83\x06\xd7\x93k\x81S\x1e/,\xc2:|\x03\xa5\xb0\xdc\xdd\xab\xc9\x84$7\x8aL)\xaa&lt;c:\x1e\xb17\x990\xaa\xab\x14A\x04\xa9`\x97\xa0\x85@\x0bPR`\xb4\xc2hM]\x18\xb2,CkCD\x10\xbc\'\x84\x98\x14\x0f1\x92\x99\x0c\x94\xa2\xedzF\x85\xe2\xecf\x81\x95\x92M\xdf\xd3\xb9\x81\xd2w\xe0%U&amp;8\x1d\xed\xa1\xa5\xc4\xdb@\x08\x0e=\xd2d:\xc3!\x881\xd2w\x03\x11\xc8\xcb\x1a\x95\xe5X"\xe7\xcf\x9f\xf3\x93\x9f\xfc\x04\x93e|\xfb[\xdfb2\x1d#\xe5\x97\x03\\_\x1a`y\xef9{\xf6\x9c\xbf\xf8\xb3?\xe7\xfc\xd9S\xcaL\xe2\xfa\x1e\xd77\xd0\xad\xe9\x977\x98,\xc7\xc5\x8eQ\xae\xb9w\xf7\x88b\x17uJ\xad\x18\x979\xd3\xbaf\\\xd5\xe4yF\x9ee\x98&lt;\xb1\xe1"\x06d\x8cHI\x8a^Zc\xb4"S`\xb2\x0c\xa5L\x12d\t\x81\x10\nb\x02W\x8c\x11m4QL\x19\x17\x92\xeb\xd5\x86!\xc0\xb2\xd9\xb2\xedz\x9a\xc1\x91\xe59Y\x96#\x81\x18\x021D\xfa\xbe\xa3\xd9n\x19\\\x87\xd0\x1a\xa15\xad\xf68\x1f\xd1\xc2\x82P8\xe7\xb9\xba:\xa7\xf3\x16\xa9\x14Y\x96\xf1\xcdo\xfe6u]})\n\xfa/\x05\xb0b\x88\xac\x16K\xfe\xfa\xaf~\xc4\xe7\x9f~\x82\xb7\x03F{r\xe1\x10X\xack\xb93+9\x9e\xee\xb3?\x1e\x93\x19A\x16=\x06\x8f!R\x1a\xcd\xb4*\x99\x94\x05e\x96@cr\x85\xce\xd3\xed/\x06\x10\xd1\xa3\xa4 \xdf\xb1\xef)\x1d\x92\x14\tR\x12"H!\x91J\x11\x81\xb0c\xf0C\x0c\x98&lt;\xa3\xb8s\xc0\xe9\xd1&gt;AH\xda\xbe\xc7#p1\xd2\xb6\x1dbG3\x88\x18\xb9\xbe\xbab\xbeX\xc0\xe1\x98\xed\xd0\xd3\r\x8e\xde\x07\xfa\xc1\xd3t\x8eM\xefh\xfa-\x992D\xd7\xf3\xec\xc9#V\xeb%\xda\x18\xf6\xf6\xf6x\xfd\xf5\x87/S\xf3m&gt;\xb7\x1eX1F\x06;\xf0\xd9G\x9f\xf0\xc9G\x1f\xe3\xed@\xb7Y\xf1\xf8\xd9\xa7\x8c\xeb\x0c-\x03\xf7\xf7\xf7\x98\x8dF\x8c\xf3\x82\xbdQ\x85\x16\x1e\xed-\x86\x88&amp;Pe\x8aI\x9eSe\x06\xa3%Z\x0b\xa4\x8a\x84\xe8\x881\x10\xf1\x08\x02Z(2\x19\xc8e \xd3\x8a&lt;\xcb\xd0J\'a\xa0\xf3@H\xf4\x05\xe0\tH\r]o\x896\xa2\x85 \xd3\x06\xa1\x15\xb5\xca\xd1:c\xf0\x165\x1d!\xe5\xae\xd1\x1d\x03\xfb\xf7\x0f\xe9\x0eG,\x97KLfh\xfa\x9e\xa6\x1d\xf0B\xb1\xed\x03O\xce\x17&lt;\xbeY\xb1v=\x93"\xa3\x1c\xd5l\xfa\x81\x9f\xff\xfc\xa7\xdc=\xbd\xc3\xfe\xfe\x1e\xfb\xfb{\xb7&gt;%\xdez`\x05\x1f8\x7f~\xceG\x1f\xfc\x8a\xcf&gt;\xf9\x18\xdb6,\xae\xaf\xb0\xdb\r\xf5\xf4\x88\xd7\x1f\xdeg\x7f:a\\\xe40X\x8c\x88dR\xa3\x83DG\x9f\x80e$\x95\x91d\xd2\xa3c@\x87\x88P\t&amp;H\x81@\xa2\x84D*I\xa6S!\xafE@E\x8f\x0c\x82\x18\x02\x04\x8f\x90\n\x05D\x04\x91\x88\x90\x12\xf3\x02\xa4&gt;\xa4\x1e\xa2\xcf\xc0Yt\x0cdJ1\xf4\r!\x06\xf2\xcc\xa0\xb5\xc6y\x8b\xc9\x04\xe3\xe3=\xfafK)$\xfb\xd5\x08]\x8c\xf0\xa2`ov@\xfc\xf8\x11\xef}\xfe\x98\xd5b\xc1k\xbf\xf5\xdb\x98\xa6\xe1\xf9\xf3\xa7\xfc\xf2\x17\xbf\xe0\xc1\xbd\xfb\x94\xdf\xfa&amp;\xd5-O\x89\xb7\x1aX1F6\xeb\r?\xfe\xcb\x1f\xf2\xf8\xf1#\x96\x8b9\x8b\x8bs\xa2\x1d\xf8\xad7^\xe7\xcd\x07\xa7&lt;|p\x8a\x16\x01\xdbt\x14\xa3\x1c\xdf\xb7x\xdb%pDPD\x94\x88(\x19\x91\x02\x04\x11!\x02\xc4T\x88K!\x91R \x85@\nR\xfd\xe4=&gt;Fz\x1f\x91\xca\x13#\xf8\xdd\xe7\x06@\x08\x81P\x8a("*3d:K\xc0B\xa0\xa5F\xc5D\x8b\xb8\xa1C\x0b\x81\'24[\x06\x01Y\xa61R\xe0\xfc@e\x04U\x96\xe3Qx\x11\x91\x99\xe2\xb5\xd3c\xacP4\xce1&lt;\xbb\xe0\xd3\x8f&gt;D\xd55\x93q\xcd\xa7\x9f~\xc2O~\xf4\x13\x8e\x8f\x8f\xb9\xff\xf0\xfe\xadn\xfd\xdc\xdeW\xc6\xae`\x7f\xfe\x9c\xcf?\xff\x94G\x8f&gt;\xa34\x9a\xb5\xb7\xdc?=\xe4w\xdf~\x93\xe3\xbd\x19\x856\xe0-V\x06\xe2\xd0##\x18\xa9\x91x"\x02\x1f\x056\n\x06\x04HE\x94\x82\xa8\x05JI\x94\xd81\xe6R\xa2\xa4D)\xb9\x93\x11\x83\xdf\xfd\xdb\x97\xec\xa7R\x04\xa9\xf1Q\xbe\xd4]\x05\x99\xa8\x07g\x03Z\x1a\xb4\x90\xb8\x00A\x99t\xddt\x12\x1f=Q\x08\x94\x86\x10\x03\x83K)\x11\x02\x99\xb0\x04\xe7\xf0^\x80\xc8\xc0I\xb2L\xb0Wf\xdc=\x98\xf0\xec\xfc\x02\x9b),\x9eg\xcf\x9eR\xe4c&gt;\xff\xe4S~\xf5\xc1\xaf8&lt;:d4\x1e\xbd\xeaG\xf4w\x9e[\x0b\xac\x18#]\xd3\xf2\xab\xf7\xdf\xe7\xec\xec\x19\xd6\xf6\xf4]G\x95\x17\x1c\xed\xef\xb3?\x9d2\xae*\x94\x10\xb8\xe0q1\xe2\xbd\x87\x18 \x04"\x01\x88h)AkP\x9a \x05^I\xa4\xd6Di\x88A \x10\x04!\x91B\x12\xa5$\nI\x14\x00\x82\x80\x00$R(\xa42\x08\xfd\xe2C#\x95B\xab\x88\xb3\x0e\xef&lt;\x0e\x08Q\xa2\x10\x08mv\xd1-u\x00\xa4\x88\x08\x11\x91\x04b\xf0\xc4\x18\x08\xd1#&lt;\x10\xd3\xedR\xc4@\xf4\x16\x11\x1c\x85\x16\xcc\xea\x92\xbbG\xfb\xf8\xeb\x05\xdb\x08\xe3\xb2\xc0y\xcf\xd3\'\x8f\xf9\xe8\x83\x0f\xf9\xc6o\x7f\x83\xf2E\x9f\xf3\x16\x9e[\x0b\xac\x10\x02\xcb\xc5\x82\xc7\x8f\x1fa\x87\x9e\xa1iX\xdf\xdcpg:\xe2\x8d\xfb\xf7\x99\xd452\n\x08\x9e\xe0&lt;\xc1Gb\x04\x81D*\x8d\xf7\xe9\xc6\xa6\x94\x04m\x88\xda\x10\x94H\xaa\x06m\x90BC\x88D\xa1@(P\xe9\xf6\x87L\xc59B \xa5AH\x95\x80\xa43\xa4\xc9\x90\xda \x84B(\x89R\x10\x95C\xb8\x17\x93&lt;\x8a4+\x06Q\x88\xf4\xb9;\x1aC\x12\x89\xd1\x83wx\xef\x88\xde\xa3w\xf5\x1d\xa4tK\x8c\x88\xe0(\xa5d\xbf\xce8=\x18\xd3\xf4\x1d%\x12\x84\xe6f\xd5\xd25\r\x9f\x7f\xf2)\x1f}\xf8+\xf6\x0e\xf6\xa8G\xf5\xab~T\xff\x9b\xe7V\x02+\xc6\xc8\xd0\x0f|\xf6\xe9g&lt;~\xf2\x88\xf5j\x81m\x1bf\x93\x9a\xd7\xef\xdfg\\\x95D\xe7\xf1!\x10cj\x06\xc7\x1d\xaf\x14cLi\x08\x81\x10\x12P\x08\x14Rj\x94Hi\x8e(\x89\x884\xa6\xa5\x14Rk\x94\xd6\x08\x95f\x04#\t\x1f\xe8\x0c\xa1\x0c\xd2\x18\x84\xc9\x13@\xa5\x06!\x89B\x10\xa3\'\n\x85\xca\xe5\xee\xdf\xca]\xe4\x0c\x08)PJ!\xe3.\xf6yOt\x8e \x06D\xb4\x08&lt;J\x8b\x1d\xb0]\x8a\xb2&gt;E\xb4L\x04\xc6\x99b\x9cI&amp;\x85"\x93\x86M\xd3a\x9b-=\x8eg\x8f\x9f\xf2\xd1\xfb\x1f\xf2\xf6o\xbdCY\x95\xb7\xf2\x86x+\x81\x050\xf4=\x97\x17\x17H)\xc8\x8da\xd3w\x1c\xcef\x9c\x1c\xed\x93)I\x08.\xa5\x91\x90\x94\xd5B$\x06\xdb{\x07&gt;\x90)\x89Q\x06\x95b\x18\n\x85\x96\xe9N\x87\x17 %Jk\xa4\xd2hmv\xc0\xda=\xa0\x98\x12)A\x12\x95\x00\xa1\x130\xa5!HED$\xe4\xf9\x08\x02\x84P(4QH\x82\x14D\x05R\xa5H\'bL\xfdEa\x89a\x97f\xa5\x00&lt;\x1e\xf0"\x10\xb5B\xc5@\xc4\xe2C@\nA\xa5%w\xf6\xa6l\xfb\x9e\x8f\x9f_\xb1]\xce1\x12LQb\x87\x81\x0f~\xf9\x01o\xbc\xf36\x07\x87\x07\x94U\xf9\xaa\x1f\xd7\x7frn%\xb0b\x8c\x0c\x83%\xcfs\xee\x9e\xde%\xc7\xb3&gt;{F\x99\x19\x8a&lt;#\x06\x8f\xf3\x03\x84t\x13S\nT\xae\x89\xc2\x10m\xa2\x06\xb4\xd1\x18)\x91"\xa2\x84\xda}\xc8\xf4\xa0CLS9J\xa7\xa8\xa25J\x1b\x84\x94\xf8\x18wuP\xdc\x15\xd9\x02)\x05(\x05\xda\x80\x94\x88(\x88!"\xc2\xae\x92\x0b\x02\x9f\xae\x8b\x08\xa5P\x99\xc1d\x19\x89\xa5p\xe9\xf3E\x04\x19\x89*"\xa2\x00\x11\xb0&gt;0\xc4T\x8f)\x052\n\x82\xb3H\x01F)r-(\x8dbTd\x9c\xec\xef\x93\xb7\x91\xf9j`\xddu\xdc\xdc\xdcpyv\xc1v\xbb\xa5(\x8b[G=\xdc:`\xbd\x18yo\xb6[\x02\x89\x1c\xed\xda\x8e\xc9x\xcc\xe1\xe1&gt;E\x99\xd3\xacW\xc8h\xd1\x924F\xa5\xcc\x0e\x18\x11\xa9\xc4\x8eE\x97H\xc1K\xf6\\\xca$C\x16\x08\xa4\x04\xb5\x1b"\x95rw\x13|Q_%eL\x02\x8eH\xe9T(\x85\xd4\n\x94D w\xd7\x82\x17\xff\x93\xa2\x9f\x90\x8a\xa8T\xba(\x18\x03f\x07\xf2\x08BK$/ZB"\xa5R\xe7\x19\xf08\xe5Q\x04\xd0\xa4W\x17@\x89H&amp;#Z)\xe4\xae\xe8/s\x03:\xc7\x87\x1e\x1bZ\xba\xae\xe7\xd9\xb3g\x9c\x9f]0\x99Nn\x1d\x1b\x7f\xeb\x80\x050\x0c\x03g\xcf\xcf\xd8\xae6t\xdb-\xcdz\x85\x12\x82\xe8\x1d\xc19\xb2\\\x13]\xba]!\x00\x95\x1e\x98\x8c\x12\xa2F\x08\x95\xf8)\x11QR \xb5~Y\x94K)\xd2\x03\xd3*\xd5IB\x10\xc5\x17@\x891\x12B\xc4\x07P\xfaEj\xfc\x02l\x91\x80\xf71\xd5C6\xf5\xf1^\xf88\xa4\x9b\xa7\xdcM\\\xfb\xc4\x8d\xedj/%\x04B\xc4t#\x0c\x1e\x94@\xca\x0c\x19#\xe0R\xca\x8d\x02\xe1#D\x8f\x10\x91&lt;+(\xf3\x92&lt;+0\xce\x13M\xce\x81\x1eA\xd6\xb0\xe9,\xcf\x9f&gt;\xe7\xf9\x93\xa7\xbc\xf1\xe6\xeb\xbf\x01\xd6\x7f\xf1D\xe8\xfb\x9e\xf3\xe7\xe7\x0cmG\xbf\xde\xe2\xb7=GU\xc5,/\t]C\x99\'&gt;\x8a\xa8PJ\xa1d*\xc6\x83\xca@\x17(\x9dT\xa0ZJ$\x11\xe7,.82-\xa92\x83P\n\x1f\x1c.z\x82P\xf8(Q!&amp;\xcd\x15\x8a\xc1\x0eX\xeb\xa8L\x81\xf3!E\x1e\rZ\xa6b[+\t*\xe2\x82%\xd5\xcd\x9e\xe0\x05RH\x8cT\xc8\xa0v7\xced6"\t\tT\xc2\x13\x84#*\x07\x12DH\\Z\x08"\xa9\x1c\xb4$\xa2\xf0\xde\x13\x88\xe8\xcc0\xaa-UaY\xb6\x1b\x941\x94U\x8d\x17\x12\x1bV\xf4C\xc3v\xbbI4\xcb-;\xb7\x0eX\x91\x88\xed-1\x04\x96\xcb\x05]\xdb\xb2?\xdb\xa3_-\x89!1KJ\n\x9cM\n\x83\x17\xc0\x92z\x17\xa9t\x86\xd1iF\xd0hE\xf4\x8e\xa1k\xb1\xed\x16\xeb\x1c[\xdf#E\xd2S\xe9,\xb1\xe4\x12\x08/\xd2\xda.\xfdE\xc0:\x87P:\xdd\xecDJ\xa5\xc4\xf4\x1a\x89ag\x18\x12\t1E0\x19v\x94\x87\x0f\x89\xaeP\x91\x18v\x0e6"Q\t\xd1;D\x88\xe9\xfb+\x05;&gt;M\xc5T\xf3!%\xd2\xfbtyP\x9a\xaa\x1a\xa8\xaa\x15\xf5\xe0i\x9dJ\xf7\x0e\x01B\xa4\x8b\xca\xfc\xe6\x86\xae\xeb\x18\x8dG\xb7\xaa\xce\xba}\xc0\x8a\x91\xbe\xef\x19\x06\xcbb\xb1`&lt;\x1as\xfd\xe4sN\xa6\x13b\x88\x94E\x89R\x01/\xd3\xe0Cz\x93%Ji\x844H\xa9A\x08z;0\xd8\x88\x12\t\x08B\xc9\x97\xed\x1b-\xf5.%%\xeb"\x81\'J\x81\x97\xa4\xfaK)\xa4T\x0c\xd6\xa2\x10\x18@\xeed3\x84\x90\xd2b\x92\x93\x12\x82\x04\x02A\x04BL \x93\xc1\x10\x91d\x99J\xdfg7iMp\x08\xe7\x101\xa4\xd4\xfek,A\xd8\x91\xa4\x9080\x04hi(\xab\x92z4\xa2\xec=\xddf\xa0\xccsf*\xa7\xf3\x9e!D\xce\x9e\x9fqsy\xcd\xde\xde\x1e\xda\xdc\x9e\xc7y\xab\x08\x90\x17n0\xeb\xf5\x86m\xb3\xa5\xaeGl\xb7i\x98AI\xc5\xc1\xe1!\xd69B\x88\x18mP:\x01@\x88T\x94\xc3\xaeG\xe7\x1c\xce\xa6z,\xf8\xc4\xc4\xbf\xb8\xf6\x07\x97\xda(\x84\x88H&lt;91\x8a]m\x15\x00\x892\x19Y\x9e\x7fQ\xc8\xbf\xd0_\xed\xb8\xb2\x10\xd2\xd7\x94B\xa0HE7/\xfe&gt;\x84D/\x04\x07D$ b\x92\xd9x\xebp\xcea\x9de\x18\x86\x14\x81w\x11R\xee\n{)e\x8a\xc2;\xb9N\x91\xe7\xe9\xe7\x17\x92\x18\x03y\x9e\xb17\x1b3\x9e\x8c\x10J\xb0^\xad\xb98\xbfH\x83\x1d\xb7\xe8\xdc\x1e\x88\xef\x8e\x1d,7\xd7\xd7\xe4Y\x12\xe3\t\x04&amp;\xcb8\xd8\xdb\xc3Y\x87\xd2\x81\x10\xd3-K\xb0+\xc0w\xe0\x10;\xd6[\x90nR*F\xd4N\x99\x10\xbc\'X\x8b\x8f\x01\xa1d2\x02\xd1\xc9\xbb\xe1\x05X|\x88(@\xef\xd8u\xe7I\xfd\xc5\x08\xde\x07\x90\x89\x86\x10\xe9\xdb \x85\xdc\xfdw\xbaM\x06^|\xff\x177\xbc\xc4sI\x91ZC\xf1%\xb1\n&gt;\x04\x84\x0f\x08)wE}z\r2\xbc\xf8\xb3\x044\xa3\reQ\xec\x86&gt;\x92\xf1H\x8c\xa9\xbf)b\x12\r.\xe6s\x9c\xbb]u\xd6\xad\x03V\x08\x81\xae\xedq\xd63\x19\x8f9W\x12\x9cCJ\x95B}\xb0h\xa5\x81@\x8c\x01!\x141\x8a4:\xef=\x89w\x92\xe8\x17uP\x04\x89\x07g\x11\xd1#c@\x03r\x17\x1dc\x8c;\xe6Z\x10b\x04!\xd2\xdf\x0bE^\x96\x89\x9f\x8a\x10\x82G\xfa_\xef\xcb\xa5\xaf\x1fw\xc4,\x02$\x01Ij\xe1\xa4 \x16_\x1a\xb0I)w\xf1+\xa9"|\x8c\xf8\xe0\x91^"$\x88\x10\xc0\'\xe0J\x01"\xbep\xa3I\xaa\x8a\xb2,\x19{I\xe7&lt;m\xbbE+\xc9hT#L\x81\xf3\x0eg\xed\xab~t\x7f\xe3\xdc:`\xbd\xe0\x8f\x16\x8b\x05\xe3\xd2\x90gI\xbd\xe0\x9d#\xcf\xc7D\x9b\x80 U\x8a$\x90\xa6g\xbc\x0b8o!F\x94\x92\xe8&lt;CJ\xf0\xce\x12\xbc\x05\xef\x88v@\x06\x87\x88i\xc0"\x90\xbd\x04\x15\xbbH\xe2\\@\x88\x804\x9a\xbc(\x18\xac%\xbc\x88\x86\xbb\x13B@\xb0\x8b.b\x17\x9f"D\x95"\x95\x14\xa9X{\xe9\xea\'$Q\xbe`\xd1\x14Q\x04bL\x11L\xe8DE\xa4/,PB\xa0dJ\xf1\xc1;\x86a\xa0\xef;\x8c\xd6\x94\x85 \xdaH\xd7\xf6\x88\xe0\xd1J\xd1\xd94\xf6\xdf4\r\x93\xd9\xe4\xd6\xb4wn\x15\xb0b\x8c8\xef\xe8\xfa\x8e~\x18\x98_\x9dQ(M9\x1a#\x95\xa2\xef{\xeaL\xe3\x9c%\xd3y*\xd8w\xa9,F\x8b\xf0\x02\x08\xa8\xdd\xc8|\xef-\xc1\xa6H\xa5E\xd2eI\xa31\xb9A\x19C\x90iX"M\x1d\xa74%P(\x9d&gt;\x8c1\xf8\x10_\xdeF\xc5n^1\xdd\x08\xddNK\xfa\xe2\x08$\x7f\x93p\x95/z\x8f\x11\xa2xq\xf3|\x91\xafE\xeau\xfatq\xc0;R\xeeM_\xf3\x85\xfcy\xb0\x03m\xdb0\x0c\x03\xce\x062S\x909\xcf|\xb3\xa1\xdf\xd1\x14\x9b\xcd\x96\xc5|\xc9\xd1\xc9\xd1o\x80\xf5w\x1d\xef=\x8b\x9b\x1b\xc0%]\x94sl\xda\x86\xa3\xd3\x13\xca2\':KD\xa1\xa4A*E\x08!\xe9\xcfw\x933"\n\x82\x8f(\t\x99T\xa0S\xabD\xc4\x80"b\x94"3\x05:+\x10&amp;C\x9b\xec\x0b!\x9f4\x98,OF!&gt;\x82u\xe9{8\x87\xf3\x16\x1d\r\xc1{\x8c1l\xd6-F\xf8\x9d\xebm\x92\xd5H\xa9w\x97\x89\xd4\xf4\x8e1&amp;\x9aBD\xd2=i\xa7\x80\x90\x02\x11B\xea\x12\x08\x01&gt;\xd5\x80\xc4@\x90\x02I\xc4\x07\xc70\xf4\xa9\xe0\x1f,\xb6k\x01\x85\x92\x89n\x91\x122\xa5\x89&gt;\xb2\xddl\x18\xfa&gt;]T\xcc\xab~\x82\xe9\xdc:`%\x96;ptp\xc0Y\xdf\xd0\xb7\x1b*ch\xda\x86\xfdQ\x95d"1\xa4\xa6\xb1HQ\xee\x053.\xc4\x0b%\xa8\xc0\xc7\xe4|\xac\x85H\rdb\xaa\x7f\xb4\x06e\x90\xca\xa0u\xf62\xa5\n\tR\xe9\xc4%\x91"_ \x01\xdb\x98\x0c\xef^\xd4pi\x905\xcf2\x9c\xdd"ej`\xa3\x92\nT\x10\xc9\x8c!\xcb\x0b\xacw\xbb/\x95$4I\xd4\x1cv\x1a,\x9f\x868^\xb4\x8d\x10;\x9aA\xec\xa8\x8c\xb8k?\xa5\x94\xaa\xa4D\xec&amp;|\xec\xe0\xd2dv^q\xb3\xdc\xd0\xb6\r\xcbU\xf2\xf0\xca\xc9_\xf5\x13\x04n#\xb0H`Y-W\x10"\xd3\xc9\x94\x83\xba\xc4o7\x80\xc0GR\xdf\xed\x8bON\xff/\x92\xb6\xe9E\xa1,DH\x05\xbf\x94dJ\xa2$\x88\xe0w\xc2&gt;E\x94r\xa7f\x10\xc9\xe9X(\xc4\x0bM\x96H\\W\xaa\x9dST\xf1\xd1\xe1\xbdOT\xc0\xaeU\xd3\xf5&gt;\xd1\x0e1\xa2\x84D\x1b\x85\xd4\x86\x00\x0c\xde\xe1\xd9]\x15C$ \x12\xd9*bj\xe9x\x9fn\xaf\xbb\xdaK\xaa\x9d\xe0o\xf7\xcb\x12\x83\xdf\x99\xbd\x05\xb4\xd6\x18\xa3\xe9z\xc7\xd0\xf7\xf4\xfd@0\x19"x\x86!Y2\xbd0\x87\xbb-\xe7\xd6\x01\xeb\x85\xa6\xea\xe2\xfc\x8c\x83\xc9\x98\xba0l\xb7\x1b\xe40\xe0\x82gp\x82q]!\x88\x04\xef\x88qW&lt;\x8b$\xe2\x13\xbb\xfaEJ\x85V\x82\xcch2cR;\xc6\xfb\xdd\xbf\x89\x84$\x13M\x14\xc3\x0b\x16\\\xa8Dp\n\xb1\xe3\x92\x0cR&amp;\x83\xb6\xb8\xd3K!\xd2\xdca\xd7\xb5h\x9d\xa5\xef/\x13 \x95\xd2h\x93\xa1\xb2]$\x0cI?\x1fEDH\x8d\x92\x1a%"\xc2;b\x00\xefS\xba\x97"\xd5qAz\x881\x8d\x95\x85\xa4\xcdR@n\x0cBvx\x97\x94\x12\x00}\xd7\xd1n;\xd6\x9b\x06]\x16\xf4}\xf7\x1b`\xfd\xe7\xce\x0bMU\xf0\x1e\xe7,C\x1fX\\]s8\x1e\xa1u\x86\xc94&gt;D\xc4N\xda\xc2N\xb0G\x84(\x12\x11\n\xe9\xaa\xefB@\x92\xe6\x03\x83\x10\xc8\xdd\x8f\x9bXw^\xaaL#\x02TD\xbc\\\x16 ^\xb2\xf9m\xd3\x12C\x92=\x0f\x89U\xa0u\x1ee\x14\xca\xa7\x08\x85R\xb8 h\x9b\x16\xeb\x05\xd5XSfEj\xf5\x90\xb4\xee\x82\xf4\x1aCL7B!M\x1a\xec E\xd2\x1d^\xbeh\x17\xc5\x88\xd6\x9aBH2k\x111\x10\x9c#\x92\x04\x8bZB\x1c\xecK\xcad\xe8\x07\xfa\xbe\xdfE\xbdW\xdf\xda\xb9}\xc0\n\x01;X\xf2"c\xbd^\x91M\xc6\x94U\x99F\xa7\x9c\xa3\x18\x8fq\x83\xddM\xd8\xec\xf8v!R\n\x0b\x00\x91$wJ\x92\x15\xef#\xd6\x86\x97\x94A\x0c\xbb\xec\xe9\x02R\xb9\x04\xa4(\xf0q\xd8\xd5X\nD\x1aP\r1rs3\xa7.K\xac\xb5\xf4\xbe\xc7\x19C\xd34\xbc\xfe\xdaC\x86\xd6\xe1\\ x\x92\xaaA\x1a\xa2\xf5\xac7[\x9an@H\xb3\xf3-\r()\xd0\x12\x14\xa0\x94\xc6d\x19\x0c\x81\x18\xdcK\x82\xf7\x85&lt;\xf9\xd7/\x9bI\x13\x96@\xa6\x94\xc4u\x03]o\x91EA^\xe4\xa8MG\xdb\xb6\\]_\xb3\x9c/9&gt;9A\xebW\xaf\x83\xbfu\xc0\x82\x94\x16\xca\xb2\xa0qIQ)\x84`\xbb\xdd\xd2\x94%bo\x9fQ=\xa2k78gS\xba\t!\x11\xa41\xec\x8aw\tB\xe2\xa2\xc7zG\x1f"\xd2\xaa\x97\xd1A\x10\xc94\x80J:*&lt;\x11\x8b\xce2\xb2\xac@\x93l\'\xa5\xd6XgY\xae\x06 Q\x18m\xd72\xf4=\xab\xcd\x9a \x15\xd69\x06\x1f\x08\xd2 \x8d \xfa\xc8\xd0t\x0c\xce\xe3\x88\x88\x98\x98\xf7\\\xa7\xd4\xacUj\xd3\xd4e\x81d\x17]v \x8e\xe1E\xd1\x1ewch\x0eo-\xc4\x17\xec}Rj\xd8\xa1O6\xe2*\x7f\xf9\xde\xcc\xafoX\xad\xd6\xe9v\xcco\x80\xf5\x9f\x9c\xb8\xeb\x89l\xb6[\xf2\xcc0\x0c\x03r\xb0\x8c\xca\x92\xa3\xc3C\x86\xde\xe2z\x0b\xd1\xef\xd2\xa6\x7fiZ\x0ba7\xc6\xa5\x18\xbc\xa5\xeb\x07|x\x91.w#^B\xa2dR|J&lt;\xca\x98\xdd\x0e\x9d\x88\t\xe1%M\x10\x02dy\xc9h4\xe1W\x1f~\xc0\xc1\xfe&gt;\xc1;\xfa\xbec4\xaa\xf9\xfc\xd1cdQ\x80\xd6\x0c.\xb0\xda\xb6\xac\xb6\r.\n\xaa\xd1\x98\xb2\x1eq5\xbf\xd9YUJ\x8cN\xc3\xaeJD\xaa\xb2`&lt;\x1e\xf1\xe6\xfd\x13\xea"OuU\x08/%6/\xd8Xc\xd2DP\x1f\x13\xd1\xdb\xb6-\xde\x07\xb2\x9d\x94:\x908\xb3\xe0\x1c&gt;\x04\xfc.-\xde\x86s\xfb\x80\x15#\xd6\x07\xaeW[N\xf6g\x10\x05Jj\x8a\xbc$W\x06\xbdk\xf8\xa2$^\x08:g\x19\x82\xc7\xec\x9a\xc6\xf3\xd5\x9a\xa6\xef\xb1\xc1a\xbd\xc7\xfb\xf0\x05\x15\xb1s\x92)\x8b\x9ci]2D\x81\xdf\xb6(@F\xa8`\'Y\x96\xe4YN\xdf@\x99+\xe6\xf3\xeb\x9d\x87\x83b\xb9iX\xf4\x8eM\xd7B9\xc2zO\xdbu,Wk\x06\x1f\xe8\x06\x8b\xdcI\x93\x9b\xaee\xb0\x96L\x1b\xea\xaaF\nA\xbbm\xe8\xba\x16)\x04\xdfz\xfd.\x7f\xf4\x87\xbfG]\xe6\x88\xbc\xc0\xba\xc8\xd06dJP\xe4\x19\xc6Hd\x0c\x8cb\xa4\xce3p\x03\xed\xb6#\x9f\x1e\xa0L\xc1b\xd3"\xb4aT\x14\x1c\xcc\xf6\xe8\x9b\xf67\xc0\xfa\xbbNR8\x84]\x8d#1JShCQ\x14(\xa5(t\xb2\xc7\xee\xed\x00J\xa0\xb4A\xc64`z}\xb3\xe0\x93\xcf&gt;g\xb9]#\x8cA\x99\xe4\xbb\xd0\xf5=C?`\xb4\xa2\xae+\xaa\xb2dR\x97\x1cL\x92\x9dQ\x9de\x08gqnH\x8ez1R\xd7\x15E\x91\xe3C\xaa\x8f../\xc9\xca\x8aM\xd73\xac6\xd8\x18\xf06\xb2\xde\xa4M\x15\xd69\xb6]\xc7\xc5\xd5\x15\x9d\x1dp\xde\xe1w}\xc8\xa2(\x19\xd5c\x94P\x0c\xb6G\xc4d\x01\xfe\xee\xfb\x1f`\x94\xe0\xdb\xdf\xfc\x06uY\xe2} /G\xf8\xa1\xc5E\xd0BB\x0cd\x99a6\x990\xaeG\\.\x1b\x86\xc1a\xb2@\xdb\xf6H\xa5\x19U5\xd19\xbc\x1d~\x03\xac\xbf\xeb\xc8]d\x11!\xd2u\xc9NQU\x05:\xd3/\xad\x84bL\xe3U\xfd0\xe0#\x0c\xce\xf1\xe4\xc93&gt;\xff\xfc\t\xcb\xcd\x96!\x04\xd0\x92\xb2\xae\xc9\xb2\x8cv\xb0\xac\xd6\xc9\xddo\xdbu\xc4\x18\xc8\xa4\xe0\xde\xd1\x1e\'\x87G\x88\xf1\x18\xd75\xb4"\xe2\xaa2\xc9\x88\xa5\xc4\x87\x80s\x9e\xbd\xc3C~\xf5\xf1\'\x94!\xe2#l\xb6\rC\x88\x84\xderu}\x8d\x14\x12\x17\x02\xd7\xf3\x1bn\x16KTf\x88|A\x1b\x0c\xdb\x868X\xc6\xe3)\x85\xd1\xf4}\xcf\xe2\xe6\x9a\xdew\xfc\xd5\x0f\x7f\xc4|~\xcd\x1f\xfe\xfe\x1fp0\xdb\x07\x1f\xe8\x9d\xa3\xc8\xd3b\xa8\xe8\x93\x00p2\x99\xb0\xb7\xb7\x8f\xbe\xb8\xa1\xe9\x1a\xa2)v\xf5X \xd8\x81f\xb5\xc4\xdc\xa2eP\xb7\x0eXB\x88\xe4}\xe0\x92s\xb14\nW$\xcd\xba\x8b\x9e\x10\x93.I\x1aC\x0ci\xf8s\xb9Y\xf3\xe1\xc7\x1f\xf3\xf9\xa3gH\x93\xd1{\x07J\xb1\'\x04E\x08l\xda\x8e\xe5\xa6\x81\x18\xd8v\x1d\xd6\x0eH\xefp]\x8b\xb5\x81f\xdb\xe0\xba\x96B\t\x86\xe9\x84qU\x92\xe5\x057\xcb%eYqpx\xc8\'\x9f}\x8e\xb5\x96\x80\xa4\xed:\xb6MGg\x1d\xdb\xcd\x06\xa9\x14\xd6;\x9a\xe5\x02\xe9\x1d\xb9\xd0\xf8\x18\x19\xd5#\xc6\xe3\t{\xb3}\x0e\x0e\x0f\xd9\x9b%1\xdev\xbba~s\xc3\xf2\xe2\x19\x92\xc0\xf9\xc5%?\xfb\xc5/\xf8\xddo\xff.\xa3\xa2H*\x08)\x01\x89\x102\xe9\xcfLF]\xd7dY\xce\xa6\x19\x08\xc11\xaa\nl\x04\xdb5)B\x874\xbb\xe8\x9dJ\xdd\x80Wxn\x1d\xb0\x88\x11\x19&lt;\x99\x94\xa8\xf4;O\x88\x01\xb9\xd3\xaa\x0b%Q\xda\xe0E\xf2Dxvq\xc9/\xdf\xff\x90\xe7\x17\x97\xc9|\xc3ZZgQ\xda\xb0X\xad\x89\xcb5\x9b\xcd\x86\xd5f\x8b R\x16\x05\xc6hT\x0c\\\xdc,\xe8\x06\xc7U]"\x9c\xa5\xda\xd9l\x9f\x1c\xec\':@\x89\x1d\xe9\xa9\xd9\xdb\xdf\xe7f\xbeb\xb1^\xb1\xddn\xd9l\x1a\xb6\xebmR,\xe8D|\xce\x8a\n\x9dgdU\x89\xd2\x8a\xa3\xc3c\x8e\x8eN8&gt;&gt;\xe1`\xff\x80\xe9lFU\x15I\xcc\xb8Yr\xf9\xfc)g\xe7\xcf\xd8n7\\^\xdf\xf0\x83\xbf\xfcK\xbe\xf9\xb5\xdf\xe2\xce\xf1\x1e\x01A\x88$o.\xe7\x88!\xadZ\x19\xd55\xcdN_\x9fk\x85\xf4\x1e;t\xc4V\xd1\\\x9c\xb3|\xfc\x84\xfa\xf8\x88jo\xf6J\x1b\xd2\xb7\x0eX\x02(\x8c\xa2\xcet\xb2\xcb\x8e\x1e\x17\\RTf\xa9]"\x95&amp;\x84\xc8\xc5\xf5\x9c\x9f\xfe\xfc\x97|\xfc\xe9g\x94e\xcd\xbd\x07\x0fSKE)\xa2H\x8b\x05\xac\xf7Lf3\xf6\xfb$/\xb1\xc3\x90\xf4\xe6"\xe2\x9dc\xd5t8\xef1\x04Bf\xa8\xdb\x8ev\x18^\xd6G\x83\x1d@\x08\xee\xdc\xb9C\xd3\xf6t\x97\x17\x04\xe7\xd0\n*\x93!"\x0c\xde&amp;\r\x986h\x93\x91\xa9\x8c\xe9t\xc6\xded\xca\xb8,\xc9\xa4$X\x87k[D\x961\xad*\xf6F\x15w\x8f\x0f\xc9\xdf\xd7,\x96s\xce\x9e\x9f\xf3\xe4\xd9S\xbc\xb5\x14\xc5w\xa9\xcb\xc3$\xcf\xd9\xc9n\x90$5\xe9h\xc4\xaa\xf3x!\xe8\xdb\x06k\x07\xb4\x1b\x08\xdb@\\-h\x9e&lt;!8\x8f)\n\xf2\xbaze\xcf\xf1V\x01+\xc6H\xb0\x16\xe9\x03\xca;\xf2\xc20\xd8\x81m\xbbM}7)\xe8{\x87\x0e\xd0\xfb\xc0\xe3g\xe7\xdc\xcc\x97\x1c\x1c\x1crrr\xca\xc1\xc1\x11YQ\xd2{G 1\xea\xce\xa7fr\xd7\xf7\\__sq~\xcev\xb3\xc6\x050:\xf9\xa8\x0b\xad\x11\x04LQP\xd4#\xf2\xb2&amp;/+\xaa\xaa\x02"ZiN\x8e\x0e\xe9\xfb\x81Hd\xb5\xd9\xb0Zo\xb0f\xc09Oo\x07\\\x08,\xd7\x1b\x9a\xf9\x02\x1b\x02e]3\xdd\x9b\x92e\x19yV\xb27\x9drz\xe7\x94\x07\xf7\xefqx\xb8OU\x14D\xe99::$+\x92Rc\xb3^\xf3\xf4\xd9SV\xef\xbc\xc1\xe1lL\x90Pd&amp;Mk\x130&amp;\x19\xc1\xc5\x10\x882 \xbc#\xc7S\x8fkN\xc6\x13Ng\x13\xe2j\xc9U\xdb\x90M\'dU\xf9\xcaj\xae[\x03\xac\x18#\xae\x1fX\x9c_pu\xf6\x9cv\xb3\xa6*M\x1a\xdd\xea\x93\xa48\x88\x9dR\x14\xc9r\xb3e\xb5\xdeR\xd65\xc7\'\'\xccf{\xe4YIQVh\xd7\xd3\r\x03\xfd`Y\xaf\x97,\x96k\xd6\x9b-\xeb\xcd\x9an\xd7\xa2\xb1n`\xd5\r\x8c\xab\n)\xc0\xe1_\xd6VEQ\xee\xb4TI\xeeR\x95%UU\xf3\xfak\x0f\xb9sz\x87\xc7O\x9f\xf1\xf1\xc7\x9f\xb0\x08+\x18&lt;A\t\xfa\xa6\xe1f\xb9d\xf0\x01\xb4f\xb3X\xf0\xe4\xf2\x0c\xa5\x14UQ1\xaaF|\xfe\xf81\x9f}~\xc4\xfd{\xa7\x1c\x1f\x1fQ\x96\x86\xa3\x93\x03\xea\xbaB)\x85\x16\x8aw\x7f\xf6\x0b\x1e?~\xcc\xf1\xde\x94\xc3\xbd\t1\n\x94V\xf8\x1d+\xdf\x0f\x1dM\xb3\xc1\xd4S\xea\xb2 \x17\x86;\xb3=\xbe\xf3\xf6\xd7\x18e%\x1f|\xf8&gt;\x8f\xe6K\xea\xd3\xbb\xcc\xee\xdeye\xb5\xd6\xad\x01\x1612l[6\x17\x17l\xaf.\xd1\xce\xd2o\xd6\xf4\xae\x07%i\x87\x8e\xde\rh"\xc1YV\xab\x05B\xc2\x9d;w\xb8sz\x8a\x14\x92\xa6i\x102\xb2\xdeny\xf2\xec\x19W\xd7\xd7\\]\xdfp}3\xa7m[\x02\x82\xa2(\xc8\xb3,\x11\xafB\x12\xbd\xa3o%\xa5\x16TZ\xd1vm\x92\n\x0b\x81\xed\x1d\xd3\xe9\x84\xba*\xd1Fq8\xdaG\x99\x0c\x81d1_\xb2m\x076\xdd\x92\xe5v\xcb\xa6ip2Y!\r.\xb0n\x1a\x16\xeb\x15EYr\xaf\x1as\xb9\x98\xf3\xec\xfc\x8c\x8b\xab\x0b&gt;\xfe\xf4\x13\x8e\x0e\xf7\xb9\x7f\xef\x88\xb7\xbb\xd79:9b:\x9e\xb2?\xdeC\x05x\xf6\xe83\x9e&gt;{J\x95gTe\x81\x11\x02\xa3\xd2\x0c\xa5\xf7\x01;\x0c\xe8b\xa0\xac*\x8e\'c\xbe\xfe\xda\xeb\xdc?&gt;\xe4\xf1\xc7\x9f\xf2\xfeO\x7f\xcc`*\xecv\x9b\x9a\xe6\xaf\xe8\t\xdf\x1a`\x05\x1fhW+\x86\xd5\x8a\xa3z\xc4\xdcv\xb4MC\x10\x01\xa93\xda\xbe\x05\x01J+B7\xb0Z\xad\xc8\x8c\xe6\xf0\xe8\x88\xe9d\xcc`-\x8b\xc5\r\xcf\x9f?\xe3\xc9\xd3\'|\xfe\xe81\x9b\xed\x16\x93\xe7h$\xde\x0e\xf4\xbdeTV\x14yA\x0c\x81&lt;\xcf\xe9\xb6\x1b\x86\xa6\'d\x9a\xb5\x96\xdc\\W,&amp;#\xc6U\xce8\xdb#7i\xf853\x86\xa2,\x88B1\xae\xeb\xa4\x17\xbb\x9a\x03K\xfa\xc1\xb2\xda4\xb4\x83E(\x8dG`]\xc0FA\xbfi\xd8k\x87\x9dg\x17t\x83\xe5\xe2\xfc\x9c\xe7\xcf\x9f\xf2\xf4q\xc9jq\xc5\xef\xff\xc1\xefQ\xe7%y\x91\xf3\xe6\xeb\xaf3\xadJ\x08=\xfd\x90\xb8\xb7\xa4\xc7JW\x99$\x0f\x8a\xb8\xaeAOJ\xee\x9e\x1cr\xba7E\xda\x9e~\xb3D\xf4=G\x87\'dZ\xc1+d\x1en\x05\xb0bL\x06f\xf3\xf3KV\x97W\xbcv\xe7.\xb9\x08\xcc\x9b\r\xd1ui\x86n\xe81\x99A\x06\x9f\xb4Nn@\t\x98\x8dGD\xefX\xcdo\xb8\xbe8\xe7\xddw\xdf\xe3\xec\xfc\x0c\xef}\xda@\xb1\xbf\x87\x0f\x11\xd7\xb6\xc4\xc1\x91\t\xc18\xcb\x99T\x15y\x95sq6\xb0\xd8\xac\xd8t\r\xa5\xf4l\'#\xda\xed\x06\xdbuH\x01\xb6\xef\xf1E\x86\xa9J\x94\x94X\xeb\xd0Z0\xdb\x19\xbf]D\xb0\xc3\xc0\xd0\xf7\xc4\x10\x98\xee\x8d1E\tHD\xa6Y.W4\xdb\r\'GG\x1c\xed\xef\x91\x1b\xcd\xb5Q8\xdb\x13\x06\xcb\xe3O?\xe5\xf8`\x1f#\x15wO\x1fR\xe5%\xf7\xef\x9d\xd2l\x97I=\xea\x1d\x19\x1a\xe7\x06\xbc\xb3\xe4\x99\xa6*\x0b\xacs\x94\x85ao6%\xda\x01\xeb{\xea&lt;\xe7h\x7f\x1fS\x96Ij\xf3\n9\xad[\x01,H\xbc\xd5\xf2\xe2\x92\x8b\'Oy\xe7\xce)\xa3\x07\x0f\xb9X\xcf\x19\xce\x9e\xd0t\x9b\x94\xca\xe2\x17M\xdb*\xcf\xc9\x0bC\x95g4\xcd\x96\xab\xb3\xa7|\xf6\xd1\x07h&lt;o=\xbc\x8f\xd6\x8a\xa2()\xca\x92\x10`\x7f&lt;\xa1\x1b\x1cU]S\x14\x15yU\x92\xd59\x9a\x80\xb0\x03\xa1k\x18W\x15\xd3QEU\xe4h\xc0\xf5\x1d\r\x81L\x0b\xea\xaa$\x1aC\xb0\x0e\x19aRW\xdc\xbfs\xc2\xf5\xe5\x05\x17\x12r\xad)\xca\x8a\x83\xfd}\xf2\xb2B\x08\xc9\xa9V8\xeb(s\xc3\x9d\xe3\x13\xee\x1e\x1f\xa7\xf6M\xfc\x16RDF:\xf2\xfe{?\xe7W\xef\xbd\x87w\x16\xe1\xe1\xfe\xdd\xfb\x8c\xaa\x82"\xcb\xf0J\x92\xe5I\xe4\xe7v*\xd7\xcch\xb4\x96X\xeb\xd1J\x92iAp\x03"\x08&amp;e\xc1\xac\xae\xe8bD\xbf\xe2\xa5\x9a\xb7\x06X\x00\xd19\x96\x17\x97\xb8z\xc4\x83\x87w\xc9\x0b\xc3\xa3\xcbg;\xdb"\x8bs\x96Z\x17d&amp;\xa3\xca3T\xa6P\xd1\xd3\xac\x96\xdc\x9c\x9f\xe1\xdb-\xdf\xf9\xed\xdf\xe6\xf5\xd7_G\x08I\xdb\x0f\xf4\xc3\x80\x90\x9a\xae\x1f\xb0&gt;0\x1aO)\xca*q^\xc1\x91\x11\xa9\x95`\xd8\xac8\x9c\x8c89&lt;\xa0\xd4\x9a\xa1m\xe8\x9b\x8c\xe8\x06Z-i\x8b\x12-\x93\xdb\x96\x16\x90)\xc1\xe9\xc1&gt;\xfd\x9bo"\x81\xf3\xebk\xfa\x0023H\x01w\x0e\x0f(\xaa\x82\xb2(\x19U\x15\xf7\xee\xdc\xe1h\x7f\x9f\xdcHf\xe3\x11\xe3Q\x05\xfd\x86Ye\xf8\xe4\xb3\xcf\xd8\xdf\xdbch\x1b\xae\xce\xce\xe8G\x15\x93I\xc5\xa8*\xd1Z\xeed\xcc\x89e\xf7~\xa0m7i\xaf\xb5\x8cD7\xa0H\xbd\xd4\xe8&lt;U\x96\xd19\x87\x88\xfc\x8d\xc9\xa2\xbf\xefsk\x80\xa5\xb4f&lt;\x9b\x12\x9deuuE\xf1\xf0\x94iYRf\x19*\xd9\x19\x13v\xf6DZHFEN;\xb4l\xe6\xd7\\\x9f?\xa3\xce4\xdf\xfe\xfa\xd7\xb8\x7f\xf7\x0eG\xb31yQ\xe0Bd\xdb\xb4l\xb6-JD\xa2\x90\xe4\xb9\xc6(@j\x18\x1cu\xa6\x19\xe5\x19]o(\x8d\xa6\xca\x0c\x99\x94\x08\xe7q}\x8f\x91\x02\xdf[\xfa\xa6\xa5\xaajLQb\xa4B\x84@e\x04\x0f\xef\x1c\xd15kl\xdf\xd1\xd9$\x06\xf4\xce\x92\x97%\x99\x12\x94Z2+r\x8e&amp;c\xee\x1e\xcc0R\x10\xbdes}\x89t-o&gt;x\xc0;o\xbdAVTX\x1bX\xad\xd6\xbb\x11|\x80@\xdfv87$s\xdd\xdd\xa8\xbe\x0f\x03eU2\x99\xd48\xdb3\xb8\x01\xa9s\x8c\x94\x8c\xaa\x92u3\xec\xca\xabW\x87\xac[\x01,!\x04\xcah\xc6{3rch7k\\\xd3\x91\x95\x8a\xa3\xc3\x03\x1em\xe78g\x93v\xdcy\xfc0\x80w\xb8\xbe\xa5\xef[t\x0c\xbcv\xef\x14\xa3\x15\xdb\xd5\rW\xbe\'/K\xac\xf5\xb8\x10\xb1.\xe0\x07\x872\x19\xbek\xd9,\xe6\xd8\x10\xb0\xce\xd15[\x0c\x91\xac*\x99\x14Eb\xfcw\xa3bx\x8f\xdc\xa9XDH\x1f\x92\x04l\x15#\x19\x81\xe3\xd9\x88\xcd\xc1\x8c\xcb\xe7\xcf\xe8\xd6+\xbc\x0b\x08\xa5(\x8b\x8c\\\x92,\x1f\x8d\xa4\x9b_q\xd6\xac(\xf3\x0c\x89\xc7\xf6=wN\xf6)\x8d\xc6\xf9\xc0\xd04\xec\x1f\x1c3\x1bO\x912b\x8c\xc4\xbb\x816x\xdc\xe0_\xd8p\xa1\xb5DkIU\x17\x14e\xce\xcd\xcd5\xebUGu\n\x85\xce\x99\x8c\xc6,c\xf3\xaa\x1f\xe9\xed\x00\x16$c\x8f\xac,(\x8b\x02\xd1\xb4\xb8\xaeC\xe5\x15\xa7\xc7\xc7\xc8G\x1f\xb1\xd9n\x80\xddZ7\x1f\x88\xce#\t\xcc&amp;c\xaa,)5\xbb\xa6A\x06\x8f\xef[\x9a\xbeg\xb5\xda\xd0[\x87P\x8a\xa6\xb5D$e=\x02\xa90\x99AII^V\x1c\xd4#J\xad(\xb5 \x131\xa9:\x85N\xa6\xb9\xce#\x82Hn\x80\x01\xa2u\x04\xe7\xd1Bb\x14\xcc&amp;5\xa3\xaf\x7f\x8dI]\xf1\xd1\xa7\x8fx\xf4\xe4\x197\xcb\x15\xddr\xc9\xd07\xb8\xed\x1a\xda-\xeb\xa4~f\\\x97\x14F3\xaaK\x16\x17\x8e\xae*A\t\xaa\xd1\x04o\x87\xa4\xbb\xf7\x01;\xa4\xe2\xbc\xae\nb\x18\xf0\xa4nAQd\x94UIY\x97\x84\x18x\xfc\xe8s\xc2\xd5\x92}Sp\xe7\xe8\x0e\xd5xL\x19v\x0e\x84\xbf)\xdeITB\x96\x91\x159y\xf4\x10=m\xb3Ad\x1e\x85\xc3Z^N\xb5h\xad9&lt;\xd8\x075e\x18z\xe2x\x8c\x88\x9e\xe8\x1dE\xf6\x06\xeb\xf5\x8a\xf5j\xcd\xfex\x8cs&gt;E\x04\xe7\xf1&gt;"\xa4"\xcfK\xa6\xd3\x19B\n\x86~ z\x9f\xec\xb0\x87\x1eo\x074\n\xa34\xd1\x05\xa2\x8f\xc8(\x90\xa8$m\xf6\xe9\x02\xa1\xb5"zI\xdf\xf5dy\xc1[\xaf\xbf\xce\xf1\xf1\x1d\xdey{\xc1\xf3\x8b\x0b\xae\xe7\x0b\x1a\xdb3\xf4=y\xa6\xd9\x9fN\x19\x95\x15FI\xdc\xd0\xd2\xf7\x1d\xeb\x9bk\x0e\x8f\x8f8:\xbd\xc3\xfe\xc1A\xbaM\nE\x8c\x0ek#C\xdf!\xa3C\x84d\xd6&amp;\xa3\xa4,r\xc6\xe31\x93\xd9\x14)a\xb3\x98\xc3\xbaa\xb3X\xd1\x14\x13T5ev4B\x95\xe5\xae\x91\xfd\x0f\x1cX/\xd2\xa1.r\n\x91&amp;\x8d\xcf\x9e\x9d\xf1\xc4.\xc8\x85\'\xcb\xf2\x04\x1e\x11Q\xb9&amp;\x0ci\xf2\xb8,J\x94\x80\xbe\xdb\x92\x17\x19e\x961\xca\x0c\xf7\x8f\x8f\x91B\xd0u\xdd\xce\xd9%\xee\\\xfb\x041\xa4\x112\tX\x19\xe9{h;Kk\x87t\xebC#]\xf2\xa0\xd2Q\xa0vc\xfc!\x82T\x02\x85Bz\x8d\xb5\x8af\xd7\x82\x92J\x93\x17%\x0f\xde\x98r\xf2\xe0\x1e\x8b\xd5\x9an\xe8q\xce"\x85`2\x19a\x94N\x0b\xcd\xa3g1\x9f\xd3]]S\xd55U=A\xea\x1c\x95\x17\x89\xa7\x0b\x03BE\xdae\x83\x1b\xda4H1X|\x94\x04\xebw\x1e\xaaI\x91\xba?\xae\x91d\xb8\xb6g\xb3\xd80.\xf6\xd8\x7f\xed\x01\xd9d\x92\xe6\x00^\xd1\xb95\xc0\x02\xd0\xc60\xdd\xdb\'\x9b\xdf\xb0X\xaex\xfa\xec)\xbfZ&lt;%;9Hk\xe0\x94z\xa9\xc5\x12;\xbfP)\x04\xc6h$eZ\\\x99\x19\xa4\xc9\xc8\x8c</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 5.0.12\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x12\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x07\x08\x02\x03\t\x04\x01\n\xff\xc4\x00@\x10\x00\x01\x02\x05\x03\x02\x04\x04\x04\x03\x06\x04\x07\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x11\x07\x12!\x081\x13"AQ\t\x142a#Bq\x81\x15R\x91\n\x163\xa1\xb1\xc1\x18Cb\x824Dcdr\xd1\xf1\xff\xc4\x00\x1b\x01\x00\x01\x05\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x04\x05\x06\x01\x07\xff\xc4\x002\x11\x00\x02\x02\x02\x01\x02\x04\x05\x02\x06\x02\x03\x00\x00\x00\x00\x00\x01\x02\x03\x04\x11\x12\x05!\x13"1A\x062Qq\x91a\x81\x14\x15#B\xa1\xb1\xc1\xf0\x073\xd1\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xef\xe4\x10\x00A\x00\x04\x10\x00A\x00\x04|Q\x00r#\x8f~\xc0|\xde\x00\t1^\xbe!\xff\x00\x10=)\xe8+H]\xbb\xae\xe9\xb37q\xd5%\xden\xd5\xb7%\xc0S\xd3\xb3\tO\xd6\xa1\xf9YA \xadg\x808\xe4\x90!\x9b\xb2(\xc7\xefc\xd0\xe5T\xdbt\xb5\x14?z\x9e\xea\xa3DzB\xd2\xd9\xbd_\xd7[\xc5\x9aE"W\xca\xdf\x97{\xd3.\x90v\xb4\xcbc\x97\x16O\x00\x0c\x0ey"?3\x1d_\xf5\x81\xac\x1do\xeak\xd7\xd6\xb6\xea\xdajS\x89\nE&gt;\x9e\xcc\xc9n^E\x1c\x82\x86\x18\xc8Kc\x1d\xc9\xe5^\xa4\xf1\x8a\xbb\xba\xb2\x8c\xb8\xc1\x16\x95\xf4\x99\xebse\xbf\xeb;\xfbD\x1d[\xebu\xe31/\xd2\n\xa64\xee\xcdc\xf0ef\xd7).\xfc\xfc\xea\xb3\x82\xe3\x8bZ\x1cCy\x1d\x9bH$\x03\xca\x81\xe29\xb9F\xbfk\xbaO2\xaaeJZF\xa5o\xccm\x13\xd2^"|T\x8fG[\xe7\xeb\x1e\xdc\x02Gq\x10l\xcc\xc9\xb3\xbae\x8e&gt;\x0e-\x7f:\x1dz\x89\xab\xfa\xad\xaaW3\x97V\xaaj\x15r\xe4\x9e\x9c\x9aq\xc7\xff\x00\x88T\x94\xbd\xcb\'\xcd\x82\xfa\x8f?n\x00\x1d\x87\xa4,S+Z\x7fp\xd1\xc5.\x89Zy\x97&amp;W\xe3K\xcd&lt;\xcbs\x08\x7fq\xfeU\xe3\x07\xd3\x00\x93\x9f\xeb\x15\xb6eX\xfbm\x96Ua\xd6\xbb\xad\x0e.\x9b\xf5\xda\xe5\xd3*\xf4\xc4\xde\x8a\xebM\xe5`\xd6\xfc4\x07\xdc\x90\xab:\xc7\x8c\x01\xc2J\xd2\xd2\xb0\xf3G9\xd8R\xacw#\x88e\xd2\xd1L\xa9N3\'y.]r\xe9{l\x8d\xc5KmIHZ{\xa1\xc4+\xcc\xda\xbd\nH\x05 \xe4g\x10\x98\xd9w\x1e\\\xda\xfb\nx\xf4\xb9i\xc5?\xb1{t\xf3\xe3\xcf\xf1\x18\xd2Z\\\xa5\x03R.\xea\ry\xbal\xc0e\xea\xa5J\xdaK\x8eM\xa0\x9c%kq\xa7\x10\nO\x03pH\xc1W\x98\x08\xa6\x16U\xc4\xb9;\xa1ZS|).7ReI\xa7\xce\x15\x05\xb2\xf2\x8ev\x9d\xc7\x19I\x04gq\x07\x07\xd0\x88Tr3k\xf9,o\xee\xc4\xff\x00\x07\xd3\xe5\xdaU\x9d\x9e\xd0O\xed\x0ci|\xfd\xedI\xb2:\xaa\xd3Wm&amp;.\x06\x1bv\x89v\xd1\xa6\x159Nu$`\x87S\x80\xe3J\x0b\x04\x1c\x05\x0eS\x82A\xccrGO\xad\x04\xddv-GI\xebu\x15\xb8\xf4\x8b\xceMZ\xb3S\n%\xc9g\x9bV\xd5\xcb\xf3\x8eRAI\xfblP\xfa\x849_Y\xcd\xc7\x96\xae\xf3\t\x9fA\xc4\xc8\x8e\xea\xf2\xe8\xfd2\xe9&amp;\xbdh\xce\xbb\xd0Uqh\xce\xa7\xd0\xeeY&amp;\xce\x1dz\x8bQm\xff\x00\x08\xfb,$\xe5\x07\xec@1\xf9\xbf\xd1N\xa0:\x86\xe9\x16\xfb\xa7k\xb6\x82\xd6\r2\xb1G\x9ae\x9a\xf55@\xaa^\xa9*N\x14\xc4\xcbC\x01m\x12|\xa4\xe5HY\xcaH\xdc\xa0o1\xba\xcd7ke&amp;WA\xbe\x9f\x94\xfd7!\xc0\xa4\xe4\x1e\xfd\xa2\x15\xe8\x0b\xab\x89\x0e\xb7z[\xa0u\r-l\xae\x8a\xf5I\xc9\xa9J\x85+\xc5*\x12\xf32\xd3\x0eK\xba\x12H\x04\xa0\xad\xb5\x14\xa8\xe0\x94\x94\x9fX\xb7\xae\xc8\xdd\x1eQ)-\xaet\xcb\x8c\xd6\x89\xb6\x00A\xeca\xc1\x01\x04\x00\x10@\x01\x04\x00\x10@\x01\x04\x00\x10@\x01\x04\x00\x10@\x06\x99\x97\x1aa\x95L&lt;\xbd\xa8m%jQ\xf4\x00w\x84\xcd@\x9ff\x93cVj\x8f\xb6T\x99jT\xcb\xaaBU\x82\xa0\x96\x94H\x1f\xb0\x84\xc9\xf1\x83b\xa2\xb9I#\xf3\x97\xf1W\xea\xba\xb7\xd6wTWV\xa1.m\xe6m\xfa4\xeb\xf4[]N5\xe6\x95\x91ae\n)\n\xf2\x85:\xeaT\xa2NA\x1b{\xe0D|\xd3T}d\xda-\xa9U9\xe2N\x99\x99\xa6\xddsr\x99[\xcex\xa9O\xea\x12\xb4\x8f\xd60\x19Y\xd6Ys\xe6\xfe\xc7\xa2t\xbe\x93\x07R\xd2\xeeFT\x1bN\xc2\x9a\x96rE\xdb:ve)o\x89\xa9\x9a\x82\xd4\xe3\x8a\xef\xd9\xbc`\xfe\x84\x18\xb1zi\xd2\x1d\xcf|]h\xb3\x1d\xa8LJ\xd2\xe4\xcaWV\x98o\xd0\x1e\xcd\x01\xfc\xc4\xe7\xf6\x11\x11eJo\xb3.%\xd1\xec\x8f\xcc\x8a\xf1D\xd2\xfba\x9a\xf4\xadb\xa1@\x96Kr\xea\n\x12nN\xa2e\x0e\x81\x9e\x0b3k)^}\x8a\xb2#\xa5\x9ay\xf0\xf6\xe9\xba\xdbW\xcd\xb5\xa7\x92\xee/h\ny\xe6B\x8e}\xf0}a\xe4\xe7\xee\xc2=%H\xe7ui\xcb\x06\xd4R\xe5i\xfd-\xce\xaa\x9e\xe0.\xbe\xa6\\RP\xca\xb3\x90\xa4\xa5\x87\x8aZ?l\x14\x9f\x7fH\xead\xbfI\xba.\xe3\xed\xa6\x9fjK\xb6P|\xa5\x96\xc2T\x01\xf4\x18\xf7\x8er_\xdc?\x1e\x95-vk\xf0r^\xa3nY:\x81(\xe4\xde\x95\xd6gh5\x06\x91\xe1\xceS\xaa\xb9y\x99\xa0G\x01N\x00\x0e\xe1\xd9%Y\xc7\xaec\xab\x94\xef\x86\x9e\x81\xd4n\x05\xdc.\xb0\xa6[Rw9.\x15\xce\xfeG\xb4/\x93\xd7\x94b\xce\x978\xcb\xbbZ\xfd\x11\xc7\xba\xc3\xb7\x03\xd4\xf9JUZ\x874\x89\xea\\\xe3s\x12\x932\xeeo\xd8\x9f\xf9\xadg\x07zH\x07\xd7\x9c\x8fQ\x93\xdav:\x06\xe9\x9d\xb5%\xa7l\xd4\xefI\xf2\xb8\x95g?\xb4=\x1b&amp;\x97\xb0\x9f\xe55\xb5\xb6\xdf\xe0\xe5u&gt;\xf8\x91\x99\xac\xae\xb5@\x99\x08\x99b\xa4\xc5A\xf6\x14\x827\x85\xa1\r\xbb\x8f\xb1R\x14\xa2=\x00\xcf1\xd2\xea\xff\x00\xc2\xcf@\xaa\xd3*\x9c\xa61\xf2~R7\x05\x04\x920F\xd2=x\'\xfa\xc3Ws\x94u\xa4r\x8c\x05\x1b\x13\xe6\xcaa\xaa2\x14)ZU~\xba\xc3\x8d\xb2\xaf\x93m\xf7\x96\x95\x0c\xa9\xb5\xa9%\xb7\x08\xf7\x0e%C\xf4\x89w\xae^\x83\xaa6\xae\x8f\xd5\xae-=\xad\xbd4\xa6$\xd0\xdc\xe4\xba\x929d+\x84\xf1\xdc\x02s\x10q\xaa\x956rl\x9f\x9fL\xa5N\xa2[\x7f\xec\xd5u\x13@\xd5\x1d\x05\xbft\xd6\x9bq\xcb&lt;\xaa%\xd3\xf3\xb2\xb4\xc46|Yvf7eY?RJ\xd1\xe80\x92y\xef\x14\xc3\xfb.W4\x96\x9d\xfc@\xef\r3\xa9\xb1\xe1\xcd\\\xb6;\xcal\x04\x84\x90\xb9w\xdbY\xcf9\xc1\x04\xe0c\x9c\xc6\xdf\xa4\xe5x\x9eS\xcc:\xc6,\xab\x96\xe4~\x81\xa3\x11\x9cs\xfc\xd1q\xfd\xc5!\x94\x10\xa0\x08 \x00\x82\x00\x08 \x00\x82\x00\x08 \x00\x82\x00\x08 \x01\xa1\xafsJ\xa7\xe8u\xe38\x9ce\xbbZ}\\\x9f\xfd\xbb\x91\x96\xbbS\xff\x00\x8b\xe8\xa5\xddL\'\xff\x00\x11l\xcf ~\xf2\xeb\x86\xeemV\xf49F\xbch\xef\xea~w&gt;\x1d\xda/U\x16\xd7\xce\xad\xaf\x11\xf5\xaaQ\xcf\xc4;\x94V\x8d\xaa\x03\x9e\xe3\x18\x1f\xb4Z\xee\x8d\xb4\xe2N\xdc\xa1\xa5\xc7d\xf1\xb6M\xb59\xe5\xc0*\xd8\x12&gt;\xc3\xb4y\xb5\xf8\xf1\xe5\xaf\xa1\xeb\xd8\x16J\x98\xa7\xf5\x1f\x96E\x93#cI\x96Zdx\xcf8\xa7\xe6\x1cV2\xa7\x14{\xff\x00N&gt;\xd0\x9fzjE\x1a\x99T\xfe\x1a\xfb\x89\xde\xa3\xb5)\xeeH\x07\xb8\xfb}\xe2\xbf\xff\x00T\xb4\x8dDc+\xa2\xa5\xa1\xcc\xed\xeb/.\xf2e%\xf6\xe3v\x14S\xcecF\x9fL[\x15\xe7\xd9m\xa4\xee|\xa7+\xdd\xe6\xe0~\x91*\x11\xba\xef\xd0\xe6\xe8\xab\xe6[\x1c6\xdd\xc2\x1e\x9fR\x9eg\nJ\xbc\xbd\xfd;C\x99v\xad6a\x96\xd3(\xda\x12\xa5\x8f\xa7\x1d\x8f\xeb\x0f\xc6\xabc\xea\xc6^E3zKF\x99\xbb\xa1mn+S\x99)\xe0n\xc4\x0fYO\xcdM\xe1\xe7\x92\x86\xd2\xa0\x06\x15\xfe\xd1\xde\x16\xbfA\xcf\xe8\xf1\xdb1\xb6\xee\x99\xc5\xcc\xedq\x87\x14\xdf\xa9\xce\xef7\xb4:\xa5m\x9b~\x87 \xdaT\xbd\xce,\x12\xaf7\xaf\xb6\x07\xac9\x1a\xed^\xa4[o\xa2=\x91\xf1\x8a\xc0\x9dh\xb5\xe0BE\xc7\x7f\xd8\x96\xce\xd6\xd14\xa0\xe7m\xaaN\xde}{\xf7\x82ru\xebl\x8d\x18\xc6\xc9n"v\xa0\xd9\x8a\xb8-\x9a\x956`njjMiZ\x1c\xf5\x180\xeb\xb3\xaa\xd4\xeb\xbeY\xc6\x90\xad\xad\x96\xcf\x9b\xd4\xc7#\xc6\xc1\x19\x17N\x95\xf5(7\xc2kMe\xb47\xe3\x1foNLKmj\xb1E\xab\xc8\xcb\xa9l\xf3\xbd\xc6\x92\xa1\x83\xfa7\x13\xfe\x8e\xe9d\xe4\x87\xc4{Ln)d\xa9\xb6en\x89\x93\xe6\xe0\x94\xaaY\xd0S\xc7~\xde\xb1s\xd1\x9f\x87\x93\xc7\xf6\xff\x00\xbf\x83\x1f\xf1\x05Q\xbb\x06V\xae\xda\xff\x00\xbf\xf2u\x9b\x81\xc4`\x8f\xa8F\xbf\x8f\xb9\xe7\xdf\xdb\xb38 \x00\x82\x00\x08 \x00\x82\x00\x08 \x00\x82\x00\x08 \x03\x15-\x1br\xa3\x18\xa9[\x1bQ\xcf?x\x0e\xfd\x84}BBf,\x1a\xdb\x00g\xc4\xa3\xcc\xa7o\xa9\xcbJ\x88\'\xac\x1e\xaf\xee-\x17\xbd\xa8\xda=\xa7\x96\xdd"\xab[\xacH=6\xfc\xadZi\xc6\xc7\xcb\xa4\x84\x94\xa3`&gt;c\xbb\xb98\x1e\xc7\xd2\xbb/?\x1b\x1e.3}\xcb\xce\x93\xf0\xf7V\xea\xb5x\xf4W\xe4OM\xb6\x92\xdf\xeeR\x1d4\xaeI\xcb\xe9{\xceJ\xedJ\x92\xd9\xc9\xdd\xea\x06?c\xe9\xcfh\xd3\xa2T\xb7\xe9\xb4\xba\xb2nY\x054\xf3\xf5\xd9\xb5\xbd"\x94\x85\x84~&amp;\xd2\xd8\'\x19\x19\x04\x93\x80N{F\x0e\xcc\x9a\xec\xb1\xb5\xe8z\x85x\x97WJM-\xaf\xa3\xd9_5\x0bA\xb5\xd7R\xee\t\xcb\x99\x8b\xb1\xb9V\xc3jm\x84}\r\x94\x1fbT\x9e?\xaf\xacXK\xf3A\xa5\xb5\xaa\xbcY\xac\xdeU\x8a])\xa6K-\xd3\xe8\xce%\tp\xfb)@n\xc7\xbe\xd2\x07\xbcr\x99U)oB\xadV\xca\x1e\xbf\xe7E&amp;\xabh\xef[:|\xfbM\xe9\xbfT\x96\xbc\xd4\xd3\xaa\xf3\xd3i\xf5o\xc6J\x00\xce\xc4\xb7\x85\x02q\x16q]\t\xe8\x1e\x93\xdd\xcd\xeaM\x1a\xd6\x9c\x9e\xabH6\xf0m\x84\xd3\x82\x99\xfcU6\xa7\x01*\xcaHR\x9bA$\x8e\xe2,\xbcJx\xf6+c\x87\x91)m\xff\x00\xb6&amp;\xf4O\xa9:\xe4\xbb\x856\x9d\xfbt\xa6y\xc0\xb2\xb7\x931;\xe2\xb9\xb8\x8eQ\x9fB;\xed\xc6aOHm\x86i\x17\n\xa6\xa4\xe5\'Z?\xc6\xbea-\xcc8\xd9\rs\xfe\x18)H\xcas\xdb\x9e"\x0c\xee\xe3\xea\xcd\x140\xa5\xa5\xa2\xd2\xd2\xe9\x95\xda\xfd1\xd1/0\x96\xdeF\xef\x19J&gt;P\x91\xef\xed\x83\x0c\xfb\x1e\xfa\xaa\xb5T\x9a\xb6\x1f\x99AL\xdf\x88\x85\xa5.mR\x92\xac\xfa\xfaw\xfe\xb0\xc4s`\xe7\xc5l\x9b&lt;\x1c\x85O%\xa2\xa7\xf5#]\xea\xee\xa5v\xcdN\xe8\xb7Q\t\x92\x97\xa7\xce)+\xf9\xe9\xa46\xcb\t\xce\x08)\xc0\xf2\xfa\xe4\x9fL\xc4\xb5yh\xd2\xed\xcdU\xabMTl\xf9\xa9\xba]\xc1*\x18vjM-&lt;\x99t\x922P\xda\x91\x90r\x06H9&gt;\xfc\xc4\xba\xedr}\xca\x8c\xac58n/\xcc@\xf6\x16\x8cuk{\xb8\xdd^\xa3\xad\xf6\x9d\xc8K\x80&lt;\x86*KJ\xb2y\xfa\x88\xc2H\xc8\xe0g1d\xb4/\xe1\xa7\xa1\xd6\xa4\xa2\xab\xba]\xa8\x95\xea\r@\x95+\xe6%e\xd0\x97\x9b\xcb\xee&gt;\xa1\xb1i \x858\xea\xc9\n\x04\x1c\xf2\x0fh\x9b:\xeb\x95n[]\x8ax\xbc\x8a,Q\x97\xb8\xe2\xe9\xd2\x9d\xadzw^\x93\x91\xbc\x1e\xf9\xe9\'7715\xf9[=\xc2\x93\xd8\xe3\xb8\xe4s\x13&amp;\x9f\xda3T\n\x02m\x9b\x86\xb2\x99\xf7\x1aQS3\xc9l\xb6\x1c\xe7?NT?`B}\x80\xed\x10\xa3en&gt;_RM\x93\x9c\xa5\xa6\xc4m&amp;\xa773\xd7\x15\xa8\xec\x83I\x0bn\xa4\xa7\x96\t\xfc\xbe\x0b\x9b\x88?\xb8\xe2&lt;\xdaQuJ\xe9\xefV\xf3\x17\xb5n\x83U\xa8J\xd0\xe5R\xb6\xdb\xa7\xb6\x95\xa8\xa9\xd6\\@\xfa\x88\x18\x079\xe7\xd2&amp;\xf4\xac\x88\xc73\xcd\xe9\xee\xca\xbe\xb5\x87\x93n\x0f\x85D\x1c\xdc\xbe\x9e\xc7C\x83\x88\'\x85c\x98L\xb4.\xbaE\xe7nI\xdd4W\x94\xa9i\xd6R\xe3*Rp\xac\x1fB=\x0f\xa4n#8\xcf\xbcZh\xf3\x1b\xb1\xee\xc6\xb2U[\x16\x9a~\x9e\x8d}\xc5\x98#\xa3a\x04\x00\x10@\x01\x04\x00\x10@\x01\x04\x00|Q\tO\x10p\xa1\x00}\xcd$\xee\xcav\xf71\x91l~Q\xda\x05\xda[\x0e\xfd\xdf\xe0\xa4\x7f\x11+"\xb3\xff\x00\x11\xb6}\xf5G\x9eL\x9a\xdc\xb7&amp;\xe5\xe6\xa7\xd4?\xc1Hq\xb3\xb8{\x9c\x1e\xd0\xf6\xf8\xa2\xd9\xb7\x15gL)\x15\xcbQ\xd6\xdb\x9fnqr\x0c\xb8\xea\xb6\xa0-\xe0\x95 )^\x80\xa9\xb0\x9f\xd5b1\xdf\x12c.J\xfd&gt;\xef]\x8fZ\xff\x00\xc6\xbdZq\xc4\xb3\xa6\xcaI/\x9b\xcd\xa7\xfa?R\xb0\xda4\xf9j\xfd9Ut\xcc\xa8x\x93O\x17\x1eRBT\xea\xbcUe\\v$\xfe\xb1\xe5\xe9\xba\xa72\xaa\x0c\xd5\xa9qJ|\xbdBFiH\x9c\x97Y\xfa\\\x01;\xd5\xfb\xab\'\xef\x9c\x88\xcd\xd5\xc7\xd2+\xf2i\xfa\x84\x7f\x87\xb7qk\xf6\xd0\xadZ\xad\xceS\x1d\\\x95\x0c\x1f\x98C`+k^S\xf6\xef\xdb\xfda\xdb7E\xa7K\xbf\xf3\xa0!\xe5s\xbbwh\xe4\xe8\x94{&amp;\x97\xd8U\x17\xd3\xc7n;\xfb\xa2!\xb9\xc5\xf5Ye\xc1Q\xa8L)\xa5\x1c\xab\xc3Q\x1e_\xe5&gt;\x98\x87\x0e\xa9\xdd\x95*L\x92dh\x92M\x89\x89\x85\xf8m\xa9?\xf2\xc7\xaa\x8e}\xa0\xae\x12\x8f\xcc\xc9\xb1\xb6\x99\xae\xd1_\x845\xad\xcal\xe5\x1a\x9e\x8a\x84\xfc\xc32\xcaq\xc2%\xfcD\xedJ\x8f&gt;\x91\xea\x9e\x91\xb3\xa7\xe9Rl^UJ\x84\xc4\xc4\xa8\x01\n\x91\x95.\x12;\xa9D\x02;}\x86O\xa4H\x8e$}v9\x1c\x8a\xd7\xaab\x96\x9b\x06j\xf5\xe7*\xb2\xad\xa1\xc5K\x02\x9c\xfa\xab\x1c\x9c\x18z\xe9\x85\xb5\xa7\xd4\xc9\xa9YI\t\xb7\\eiR\xde\x98K{s\xc7\x18\x07\x9f\xd70\xfdX~n\xc9~\xe3\xb3\xcf\xc5\x85o\xbb&gt;\xea\r2\xbfR\xa4K\xd6)\x8b\xcav\xa4\xecm\xc0\x14\x85p}#\x1dm\xa1\xcd\xcbY/U\xac*\xa3\x8fMJ\xcd\x07\x15\xe4(\xdf\xb4`\xe0{Bm\x8c\xab}\xdf\xe0\xaf\xc5\xb2\xbbm\xdc\x7f\xc9\xaa\xd7v\xf8\x90\x05SU\x19\xe5\'\xbe&gt;\xac~\x87\x00\xc3\xafB+\xf3\x17e\xa9/1S\x96R\\q9R\x8a\x7f7\xa8\x88\xb1\xaf\xc5~I?\xd4\xeeFEuKs\x8ac\xaa\xdamUIT\xb6\xa7\xfcB\xe3\x7fS\x9c,\xab\xdc\xf1\xdf\xf4\x87\x02\xe5d\xe9r\r\xa8\x84\xb6\x94\x9c\xee\x03\xb1\x89\xb1\xa9F:e\x06FO\x8d/,H\xc6\xb3O\xa1N\x7f{\xace\xb2\xa9\xc9\xba\xe5\x15\xb6\xea\x92\xec\xcc\x16\xde\x97\x96\xda\xea\x03\xe9\xc6\x15\xddX\xc8 \x8cf\x1a7\x05\xfdQ{\\\xe4\x19\xb4d\xa6&amp;\x9ey\xe7\ra\xd6R|)y06\x8d\xea\x1cs\xb5j\xe7\x8c\x91\x11\'br\xf0c\xeehzf\x14\xdd\x11\xc9Mn=\xfb\xbd~&gt;\xac\xb5?\x0cY\xaa\xb4\xd7GV\xcb5\x9a\x83\x93NJ\xad\xf9f\xdeyEJ[m\xbaP\x93\x93\xc9\xe0\x0eLI\xbd&lt;XRZc\xa3\x16\xed\x9d%.\x94&amp;ZE\x05I\t\xc7\x99~e\x1f\xeacy\xd1\xf1\xac\xc5\xc4Q\x9b\xecy\x17\xc7]O\x0f\xab|Im\xd8\xb1\xd4V\x97\xee\x97w\xf9\x1f\x90E\xa9\x90\x08 \x00\x82\x00\x08 \x00\x82\x00\x08 \x00\x82\x00\x0c\x01\xd8A\x00\r\x8d[\xb1\xe4\xf5\x0fO\xaaV\x9c\xd4\xa3n\xf8\xf2\xe4\xb0\x97\x13\x9c:\x9f2\x15\xfa\x85\x00a\xca\xb4\xf9py\x86\xac\xae\xbb\xa1\xc2k\xb3\x1f\xc6\xc8\xb7\x16\xd5eoM\x1c\xd5\xb8\xe8\x17]\xab\xac\x95$\xdd\x94\x97d\xa7\'\xa4\xda.6\x96v\xef\xd9\x94\x95\xa4\x91\xe6\xc8\t\xed\x9e\xf1d~!\x16\xd4\xcc\x97\xf7WQ$\x19\x1be\xe6\x9f\xa7\xcd-I\xf2\xb6\x87\x91\xb9$\x9e\xe3+l\'\xfe\xe8\xc4\xf5N\x8f\x1cIx\x91m\xa6zOG\xf8\x8b\xf9\x94|+"\x93_\xe4\x80(5\'*2s)\x9b\xf0\xc3\xac\xb8\xa0\xa7\x1b\xce\xd5\x0c\x9f\xf4\xe0B=\xa3sIN\xd6\x84\xa4\xa8O\xcb&lt;\xdaP\x96\xd2\xef\x1d\xb7`\xfe\x9d\xbd\xe2\x92\xb6\xf9\xe9\x9aM\xb8\xad\x0c\xbdF~\xadt\\R\xf4\x9f\x99\x96\x95L\xc7\x88\x896\\\xc2L\xca\x922H\xc9\x04\xe1!D\xe3\xda\x17\xf5\xabC\xf4\xdf\\-\x84\xc8]\xb4\xc6\xd30\xc2\x8a\xa9s\xd2\xa5M\xccH\xbax*mC\x05\x07\x1e\xa0\x83\xcc;\x1ak\x9d\x9d\xd9/\x1e\xc2&lt;\xa1iF\xcb\x89\x13\xf5\x1b\xdb`mI(O\xcc$)=\xc1\xc1$\xc6Zyb\xea\x0e\x93\xd3\x7f\x81T\xf4\xe2\xd7\xba\xa4Q0\x95|\xd4\xea\x02\'\x1dBR\xa4aN\x03\xe6Y\xcaIQ\x04\x929\n&gt;h\x9f\x1cH\xc7\xd2D\xf7\xe3IzE\xfd\x9a\xff\x00\xe8\xfe\xb4\xa8\xc1\x15@\xdd?PK\xcd\xedR\x1dQi#&lt;\xe3\xb9W\xd8\xff\x00\xac&amp;\xd8\xd3\xf3\x94\xfa\xbb\xccY\xdd/Pe_\x9as\xc4\x97z\xafP.\xb5/\xcar\x90\t\xe7\'=\xb0a\xf5\x8f\x19vm\x91\xac\xa9\xc6;\xe0\xfe\xfbZ\xff\x00\x9f\xf4?)\x963\xd4\xfa;\xf5\x19;\xb9\xb5x-oJ\x1c\x98IH\x1c\x93\x92I\xe2\x11$\xbaD\x99\xbd/\xb5_\x9a\xbf9,\x99u8\xb7WA\xa0\xa1R\xb2n\xb8\xa5\x95$-\x08P\xf1BO\xaa\xf3\xf4\x8fxn\xdcj\xe2\xbb2?\x89\xc2=\xecK\xf4\xd6\xff\x00\xd2%m\x1b_\x8e\xc2e\xde\x96e.)\x94\xbd\xb9\x9e2\xaeB\x80O\xb7\x19\xcf\xde\x17\xedZU&gt;\xdfi\xd5\xa2]%-6\x1aN\xd1\x8f\xe9\xc8\xe3\xff\x00\xa8\x89Lx\xcb\x8b+2\xae\x8b[[\xdf\xd9\xad\x98\\\xd3\xaeK\xca\xa9\x843\x86\xde\xdd\xe7\xf4)\xdb\x8d\xc7\xf7\x84\xc9\xf4\xd5*\xd59kz\x9c\xa7\x1e\x98\x9cZYK-\x8c\xf8Ak\xc2F9\xe4\xe7\xbf\xa0\x85\xff\x00V\xcb\xbc\x18\x91"\xd6=^=\xafH[\xe9\xa7K\xadK\xdd\x9a|\xa3\xd4T~&lt;\xd0\x9a\xa9L\xcb\xff\x00\xe6\x10\xda\xca\x92\x85\x9fT\xe7o\x06-\x1d\x97dP,j;4j\r9\x99tK\xb0\x96\xf72\xd0N\xec$\x0c\x9f|\xe31\xa8\xc1\xe8\x90\xa3R\x9e\x9b\xfb\x19\x0e\xa9\xf1U\xb9QuQ\xb8\xaf\xbb\x16\x10\xd3M6\x96\xd2\x90\x00\x00\x0czFc\x18\xdb\x83\x17\xe6;\xbe\xdb\x97\xb9\x9c\x10\x1d\x08 \x00\x82\x00\x08 \x00\x82\x00\x08 \x00\x82\x00\x08 \x00\xed\x18\xb8\xbd\x83\xb4\x003\xf5\xca\xcf\xa4_ZM^\xb7+(\xcbNS\x1eq\xb72r\xd3\xa8AR\x1c\x07\xd0\xa5@\x18\xdd\xa9\xd7U\xbbJ\xb2\xeb\x12\xf5*\xac\xb3n\x7f\x0c{2\xee\xbe\x94\xadyiXH\x19\xceLC\xce\xf0\xff\x00\x87\x96\xc9\xdd&gt;6\xcb*\xb9C}\xda\xff\x00g7\x1b\x92\x9e\x97\xad\xb9)Xu\xc6g\x99\x97K\x9e\x0bj\xce\xf0&lt;\xa1i\x19\x00\xa4\xf09&lt;C\xee\xbfj\xcb^4V\xb6(\xb5=(\x14\xa97\xd1\xf5%%8R3\x91\xdf\xd3=\xbb\xe31\xe7\x12\xad9&gt;\'\xb3r\x94b\x94\xfdt\x86\x9d.\xeaC\xb5\x07\x04\xd9m\x94\x87\n]m\xbc\x04\xee\xcf\xbf\xaf\xed\x11V\xa9\xcfW-*\xa3\xd5J\x93m\xb9Oy!\x96\xdcK[W.\xf1&gt;B\xef&lt;d\xf1\xbb\xb1\xc0\x84\xf9\x97\xa2\x1c\xa6\xd8\x12\x95\xedwZ\xf4\xaa[\x8b\x9d\xbb\xa4\xe4\xdeJ|\x81\xe4\xa5aJ\xcflD)F\xa2R\xea\xd5T\xa2\xb2\xeb.\xa9,\xa4\xa48\xe6\x01R\xbf1W9\x85F\xeb\x8b|z\xf1=\xd8\xf8\xd1=f\n\xbb\x1d\xa7W\xae\x1a\x7f\x84\xb773\xe0S\xca\nF}I\x11\xa2B\x91bKI\x14xm2Yp%)JF\xd7\x0f\xe9\xfe\xf9\x87\x15\xf7\xc7\xbf"M\xb0\xc1\x9c8\xf7,\xcc\xb5\xf3@\x9bSlI\xd6Xy&gt;\x1e\xed\xc9X\xe0\x0e\xf9\xc4Ai\xad\xd9t\xcbq\xca\x8d2VbV_\xc3!o2\xe0R\xf7\x83\xd8$\xf0I8\x00g\xd6;\xceVwl\xa6\xc8\xa3\x16\xbfM\x93E2\xf5\x96ZKso\x07\x14\x99\xa2\xa4\xa5\xc6\x942\xd7\xbf?\xe5\x98K\xd3k\x16~\xe2\x97a\xfb\x91.\'\xe7\x10\x1cPVB\x9bN2\x12\xae~\xa5\x1c\xe7\xed\n\xae6\xd9-D\xa9vQ\x1bw\xae\xda$\xae\x97\xe5\x9d\xb9\xf5\xc2R\xe6zQmH\xb2\x97\x95"\xde\x7f\xc4s\xc3)\xde\xa1\xf6\x05X\xfb\xab&gt;\x82\x1e=8J3%\xa8\xac\xca\xa1)O\x85&amp;\xea\x12\x94\xf6\xec?\xce-z-R\x96g\xd7E\x0f\xc4\x96?\xe4\xfc\x92\xec\xd9b\x100\x90\x04\t!C"6\xe7\x9a\x1f`\x80\x02\x08\x00 \x80\x02\x08\x00 \x80\x021R\x94\x0f\x7f\xf2\x80\x0c\xa2.\xd6\xde\xb0\xfa\x7f\xd0\t\x94\xd1\xef\xeb\xf1\xb7+\x8f7\xbeN\xd6\xa2K9P\xabM\x0c\xe0xr\x92\xe9[\xa4\x13\xc6\xe2\x90\x91\xea\xa1\x1d\xd3\x02Q\'\x03&amp;(\x97R\xbf\x12\xddy\xb6,\xd9\xab\x96\x9fC\xb0\xf4"\xddKj\x08\xbd\xb5\xe2\xba\xd2\xa6Rx\xd8\xb4Re\x9eI^O\x1b\x1c\x98my\xc6\x01\xccw\x8b9\xb4^\x87&amp;\x12\xd2\x14\xeb\x87jR2\xa5\x1fA\x1cl\xa5\xea\xd6\xa7u\xe1U\x9a\xa4\xe9]\xe9\xa9\x9a\xf3\xb5\xd5-\xeb\xb2\xfamv\xae\x9d\xd2[RQ\xb8\xa2NU\xb6\x97Ul\x05oCnx\xeaR\xb8.\xa5 \xa9\'\x16\x1c\xa2\xce\xacR\xba\x94\xd0\xfb\x96\xf3\x98\xd3\xbbCQ\xa9\xb5\x9a\xd4\xac\xb9zfN\x90\xf7\xcc\x06R\x15\xb4\xefq\x00\xa1\'w\x1bJ\xb7g&lt;pb\xad\xfc:m\xba}\xa1e\\\xf6x\xea\xf6\x87\xabUj=\xcb\xe1\xd6\x9c\xb7dd\xa5%m\xc2\xa6\x1a)\xa5\xb5/&amp;0\xcb(!kB]*w\x0e\x1d\xebWx8\x8b\x8a\xf7\xf6\xf7 \xde\xb2\xef\x1d[W\xc5!\xebj\x92\xe2\xa5\xe8\xf34zl\xdc\xe3\xdb\xb7%l)\x0bg\xc3BN@V\xe6U\x95}\xe2f\xebGI\x9f\x96\xeaZ\xcf\xd6\x86\x98\xc4\xadF\x9c\xbaL\xf3\x9b~\x97[W\x8a\xc8?l-\xef\xf2\x11\x80\xf8\x8a9\xb4\xe4\'\r\xe8\xf5/\x83\x7f\x97\xe5t\xbe\x13K\x9c^\xd0\x8a\xec\xd3\xd4\xc5\xfc\xcb\x08\x1b\x7f26\x8c\x05G\xb6zU\xa7e\xfeMl\x1d\xbd\x94\x91\xf9y\xe0f+#n\xf4i\xa5\xc6\xc91\xbf]\xa3[\xb7\x8a~^\xabDB\xe5fQ\xe1M\xa9\xc1\xf5\xee\xf4&lt;r\x0f\xf9zB\xa52\x9a\x89\x19\xa50\xb4\x056\xaeT\x8f\xf7\x89U\xf1\x97\xb1\x12\xea\xd4}\x19\x08^=\x17\xd7$\xe7\x15P\xd2;\xa5\xd4\xa1O%R\xf4\xfa\x81[\xc9i#\xbaB\xf2\x14\x13\x8f\xcas\xda,\x83+vQiS.%M\x82\x08\xdc\x90O\xf5"\x14\xb1\xeb\x97\xa9\x169\x19\x15\xfa\x15\xc6\xda\xe9c\xa99\xf9\xf4\xca\xcf\x7f\x07\x91RV\x8f\x1d\xe5O)\xd2\x06\xe1\xc8BR6\xf1\xeeA\x8b\x83jU\xa9\xdf\xc2\x0c\xbb\x0b\xfcb\xe6\xe79\xee\x7fhut\xeciz\xb67.\xa7\x96\xa5\xad\x11\x86\x91\xf4\xa1I\xb6\x0f\xf7\x92\xf9\xaf\xff\x00\x1d\xa8K(\xaeM\x95+d\xbb\x07\xf9\xbc1\xf5{eD\x9ebf\x95L\xbad\xb7\xbe\x85\x1f\x0ce;\xb3\x1d\xfe\x16\x8a~TE\x9e^M\xd2\xd3b;\x8c\xb1(\xa6\x9dL\xa2e\xd5\xb0\'\xc3J\x94\xad\xbc\x9f~\xc3\x9e#\'&amp;\x9b\x9b\x9c\x0e+\x84\xa5]\xfd#\x93\x9a\xed\xc1$\xc7\xa3\\\xa3^\xdf\x7f\xa9\xb2Z\xfd\x7fIj\x927\xb0c\xc6e\xb9\xe9v&amp;\x93\xb7\xcd\xe0\xba\xf2[Y\xfd@^\xef\xfbq\xf7\x82\xe7\xb3\xdc\xbai\xb2\xf4&amp;\x92\xa5*vzU\xbf\xd3\xf1\xdb\xc9\xfe\x99?\xb49\x8b+\xab\xc8\x8f\x85\xea\xfdDg,Kpe\x1b\xbe]v\xfb\x92\x86\xbau=U\xd0\xba\xd4\x8a\xa7t\x9en\xa7n;"\xb7\xaa7\x1bu\xd9)F\xe4\x1d\nH\r,L\xb8\xd8%I$\x85n\x03#\x07\x04\x8c\xb6z\xf7\xa6\xe8\x8b\xdd-\xde\x0e\xf5\x13aL\\\xd6\\\x9d\xbe\xf3\xf7\x15\xbf#OT\xdb\xf3\xf2\xe8\xc2\xcb-\xb2\x9f3\xaaQH\xc2\x13\xca\x89\xe3\'\x11\xb9\xaf|V\xcf)\xb1EI\xe8q\xe9\xf7]\xbd1j\r\xc0\xc5\x96\x9dGj\x81p&gt;\x9c\xcb\xdb\xf7s+\xa5\xce&gt;\x9d\xd8\ne3\x01"a$\xf6SJZT9\x04\x8ec\x9f:Z\xad\x01\xea\n\xcdn\x99\xf0\xd9\xd6{Bb\x9b*\xde+\x1d3\xeb\x854\xb9&amp;\xc9\t9D\xaa]\xdd3JQV\xc1\xb9\xbf\x15\x91\xb4\xe1\xb0\xa2T\x1f\xe3\x12;\x97\x98\xeb"f\x1b^\x02T\x0e{s\xdf\x8c\xc7/\xad^\xb4gz4\xab\xb3m\xea\xde\x88\xeb\x0e\x866\xcb\x9e\x18\x95nM\xcb\xba\xcd{\t\xc6XSE\xc7%\x99\xf5\x01\xb2\xde;\x94\x8eDs\x80\xaeGQ\xa2\x06\xe9\x83\xe2\x13\xd3\'TT\x7f\x9a\xd3ms\xb2\xee\x07\xd9_\x854m\xba\xf3o\xf8n\x0e\n\\h\x90\xec\xba\xbf\xe8X\xc8\xf5\x84\xb8\xb4(\x9ec\x06_ja\xb0\xeb.%iP\xcaT\x93\x90a g\x04\x00s\x07V\xbe!:\xdf\xac\xd7\x0c\xcd\x87I\x9d\xb9.j\x92\\SOi_N\xa9\x13\x1f(\xae\x12\xa6j\xb74\xc0m\x86T\x03\x89R\x99g\xc2w\x1ed\x07\x00 \xadP\xfa\x08\xf8\x87\xea\x95\x06^\xdd\xd6\x8e\xb3\xed\xfd"\xb5P\x84%6/O\xf6\xbae\x8b\x0c\xe3\x99s=3\xb9n\x022\n\x90\x86\x87?@0\xf7\x94G)}\x08\x8e\xf4\xa1k\xae\x9b\xda\xd3U}g\xea\xd7H\xfaB\xb5fr\xba\x94\xa5\xbb5/S\xb9\x9c\xce\x00T\xc5Nt\xa4\x17V0\n\x8bk%^\x99\xc1\x8b\x1d\xa6\xff\x00\x05\xcf\x86\xf6\x99\xd4\xdb\xb9\xebZ\x00\xcd\xf9rn\nz\xbd\xa8\xd5\'\xabS\x0e\xab\xd0\xacL\xadM\x92\t$\r\x83\x19\xee!\x1c\x90\x8e6H\xa0\x96\x0e\xad|/\xe4\xaf\xf1V\xe93\xa5\rZ\xeb\x0fS\x99}a\x9b\xca\xe5\x95\x9b\xa9K\xb10{\xed\x9e\xa8\x01/(\x83\x9c\x0f\x05\x01\xb3\xdb \x03\x1d\x8f\xa1[\x14+^\x9a\xdd\x06\xd1\xa0H\xd2\xe4\xdbo\xc3j^\x9d&amp;\x86P\x94\xfb\x00\x80\x00\x11\xceC\xbe\x0c\xfd\xd9\xcf\x9a\x7fD?\x12\xaf\x88\n\x13/\xd6~\xb03\xa1:b6)\x9d)\xd2w\x82g\xe6\x90\x0e\xed\x93sc\xe8\x1e\x8aJr\x95\x0c\x82\x92\x93\x1d\x1bD\xbf\xca6\x94\xab\xea0r\x05LQ\x10tU\xf0\xfb\xe9o\xa0\xabRz\xd0\xe9\x9a\xc7\x9a\xa4\xcb\xd4\xc3f\xab1=Tzi\xd9\xd2\x8c\xecR\xd4\xe2\x8e\x08\nP\x01 $n \x008\x89\x89\xa7\x16\xda\xc1D\x12{\x1d\x8f\x94G\xd5m:\x91\xd4\xdb&amp;j\xd2\x9bR[uE/\xd3\xe6\x943\xe0L\xa3\x96\xd7\xfa\x03\xdf\xdcdC\x9bo\x88\x90\xe2I\xces\x94\xfaD{\xa9\x86En6-\x92q\xb2n\xc3\xb9N\x97\xa2\x9d\xaev\xa9M\x9b\x98\xa2\xd7\xa4T\xc4\xdc\xab\x85\x99\x96\x969\nO\x1f\xbf\x189\xf5\xef\xeb\x13\xa6\xbd\xe8\xba\xeepokfC\xc4\x9fe\xbd\xb3\xd2m\xf7\x9bls\xb9?\xfa\x89\xf4\x1d\x948\xef\x88\xc8ft+*\x93uwG\xa0t\xdf\x89h\xc8J7v\x91\x03|\xca\x1fot\xb8\xfcT\xfd#\xde3b\x810\x85\xa6nMJu\x95(\xf9\xbf2H\xee\x08\xee\x08\xf5\x07\x9fx\xa7\xe1ur\xd4\xd6\x8d?\x89]\x91\xda{4\xc9\xdc\x92\xb3k\xf9y\x9f\xc3q\x07\xcc\x93\xeb\x05n\xd7u\t\xf9\xf4\xb3\xdc\x7f(\x89\x11\xb3C\x12\x84%\xf2\xa1\xcbjT\x12\x97\xd4\xdbN\x02\x95\x1f7\xda\x10-9\x85I?\xb9\xd7U\xc7\xa7\xb4?\x1b\xa2\x88\xd2\xa7\xcaJ\x93\xd5\x06\xe5\xa9\xc0\x877(\x8cc?hk1Y~u\xef\x0c2T\x9f\xfa{\x98nWr\xec\x84,e\x1e\xec]\xa35\xf3\x1c\xad*\x03\xbe\xd4\x88\xf7i\xc5\x85[\xd4\x8a\xa9\x97\xf1\x17#G\x97P\x13\xcf5\xf5,\x8e\xed$\xfa\x9f|}?\xae!\xfc|\x1br}\x17\xeeF\xcc\xeaX\xb8\x95\xf9\xa5\xfb\x0f\xfd\x1c\xa3\xff\x00\x1c\xa8&amp;\xe7y)T\x9c\x86D\xb2\xb1\xc3\xaf\x90RT\t\xfa\x92\x12H\xcf\xb9\x87\xda\x13N\xa0R\xdb\xa4\xd2\xa5\x9be\x96\x1b\x08i\xa4cj\x07\xb0\x8dN\x0e\x0c1\xab\xf3wf\x07\xa9uk3%\xc2\x1d\x97\xdc\xd3^}\xb7\x9d\xc2\x120\x95&amp;\x13_\x98S\x8a\xc7\x7f|E\x8a\xf4)\xf8\xfb2\xbeuk\xf0\xa6\xe8k\xac\xba\xa4\xbd\xe7\xab:B\x99;\x9aT\xa5R\xb7e\xad8\xe5.\xa4\xca\xd3\x9d\x8b\xf1\x98P\xdeRI \xafws\xc1\x04\x88\xb1-\x14\x14\xed\x10\xe8qE3\xa7\xf4W\xf1\x0b\xe9\xe2\x9f\xfc\x0b\xa7&gt;\xbc\xa5o\x8ba\xbe\x19\xb55\xc2\xdbL\xeb\x8d\xb5\xd82\x99\xf9b\x85\x91\xff\x00\xcd\xb2q\xf9\x8c\\\x89\xb9s\xb7y\xff\x00\xf6\x00\xe2s\xa3R\xf4\'^\xae\xaa\xd37\x07Q?\x06]6\xbc*r.\x15S\xee\xad1\xbe\x18f\xa4\xc7\x18+g\xc5a\xa7\x18Q\x19\xc6\xd7\x82\xb1\xdc\x88\xe8im@\xee\xca\x84\x1b\xd0qe\x13\xd3~\xa4$zY\xa71)?\xae\x1a\xc9\xa22r\xb2~+\xf6\xcfP\x94\x05\xd7\xa8r-\xa4\x8d\xdb\xea\xc1\xc7\x02\t\xc8\xf3*\xa2N9\t\xe0\x88\xbdSm\t\xd9UHO!\xb7\x99Rp\xa6\xdel)\'\xf5\x079\xfe\x90s\x8f\xd0O\t}F\x86\x89\xf5\x9f/\xa96\xda*\x9e\x15\xb9s$\xb6\x14\x9a\xb6\x9d\xdc\xcc\xd4%&amp;\x07\xf3\xf8K-\xbc\xc6\x7f\x94\x85\xa4\x7f9&amp;\x1aw\xef\xc3\xf3\xa2\xcdP\xa8\xff\x00x\xee~\x9fhR\xd5uq1X\xb7\xd2\xe5.ne\x1c\x9d\x8e\xbd&amp;\xa6\xd6\xea\x01$\x84\xadD\x03\xc8\x02\x0f!\xcdJ$\xce\xa6\xcb\x8b*\'\xf4\x82\x1b\x1d1\x12\xa9\xf1\x01Q\xc9\x82\x006\xc9\xb2\xd1Z\x94S\xf4\xf3\x04\x07v\xcd\x13\x0bQYV{\xf6\xfbA\x01\xc3_\xcc)&lt;c\xed\x04\x00z%f]i!a\\{A\x00\n\t\xfcA\xb9]\x88\xc8\x1fo\xf60B\xa3\xf2\x8eG\xb4v\xbdH\xe3U\xf4\x92\x91:foj!D\xac\xe2Ary\x92\x9f\xc3\x99\x01$\xef\xe3\xe9p\x01\xf5\x01\x83\xd8\x8f\xcc\x08\xa7\xcf\xa2\x96\xdfb\xeb\xa3fem.l\x8d\xdd\xa5\xb33$\x12\xb0\x0ey\xe50F^q\x8f\xd0\xdcUd\xf4\xbb\x88\xcfP\xa9\xd2\xca\x0bS9\xf3g\x83\x88",\xcb\x08\xb7\xb1\x7fK\xad\xb3~\xdeF\xd5\x13?.\xd3-\xf8\xd3S\x18\xfcE#pN\xd4{\x13\x9cg\xd0g\x1c\xc1\x13\xf0+\x84\xae[EG[\xb6\xca\xe9\xf2\xbd\x16\x12\x99L\x91\xa1S\x99\xa3\xd1eQ/,\xdb{Zm\t\xfa@\x827r\xae\x15U\x1e\x0b]\x8f3\xb2\xc9\xdbl\xb9\xbd\x9a\']\xcf\x93\x98!\x1f\xdcq\xa4\x91\xe7K&gt;\xbb\xa0\x8e\x89=\xd2\xed%\xb4nW$\xf1\x048\x063\x03w\x07\xf2\xc1\x00\x1ee\xb63\x88!2\x03^\xc1\xee`\x84\x81\xf1Cb\xb0\x0c\x10\n\x89\xff\xd9'</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67209490741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>797117</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
+        <v>801563</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1954</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Anderson Gomes</t>
+          <t>Fernando Seabra</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x00\x00\x00\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x01\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x05\x06\x07\t\x01\x02\x04\x03\n\xff\xc4\x00=\x10\x00\x01\x03\x03\x02\x04\x04\x03\x05\x05\x07\x05\x00\x00\x00\x00\x01\x02\x03\x04\x00\x05\x11\x06\x07\x08\x12!1\x13AQa\t\x14"\n2q\x81\x91\x15#BR\xc1\x163br\x82\xa1\xb1S\x83\x92\xa2\xb3\xff\xc4\x00\x1b\x01\x00\x02\x02\x03\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x06\x07\x01\x03\x05\x02\xff\xc4\x00/\x11\x00\x02\x02\x01\x03\x02\x05\x02\x05\x05\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x11\x12!1\x06\x13"AQ\x14a#2q\x91\xb1\x1534B\xc1\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xdf\xe5)J\x00R\x94\xa0\x05)J\x00W\x01 \x1c\x81]V\xe2\x19l\xb8\xea\xc2R\x91\x95\x12p\x00\xf55\x8a\xb7\xa7\x8d\x9e\x19\xf6\x1a\xda\xe5\xc3_\xee\xc5\xad\xa56\x9c\xfc\xb4i)qj?\xcb\x90yA\xf6$\x1a\xc3i\x19Qr{#+d\x9e\xc7#\xd2\xb9\xfaS\xd4\x8cV\xb0\xf7K\xed)\xecu\x93T\xbb\xa7v\xbbG\xb1x\x11\xdd\xe5\x90\xf2\xee-\x94\xa0\x7f1%\xd6\xf0=\x80?\x9d{4o\xda\x15\xd1z\xa7\xebV\x8fB\x92\x07\xef\r\xb2\xda\xa9A\x1e\x99R%b\x97\x96U\x10{9\r\xc7O\xcb\x9cy(=\x8d\x98e)8\xa6R\xaa\xd7\xe3?\x1b6T&gt;rv\x83j\x14\x17\x00\xf9Y\x93!\xa9\x01\xcf\xc4&amp;J\x8a\x07\xba\xb1W\xc6\x96\xf8\xc9l\xe5\xd9\xc8\xf0\xaf\xbau0V\xf2\x82S!\xfb\xa2P\xd3\x84\xf6)PJ\xd3\xf9s\xe4y\xe2\xb3\x1c\xaa%\xdaG\x99`\xe5An\xe0\xc9\x99J\xc5{U\xc5\xce\xd1n\xac\xe6l\xd0/(\x896N&gt;Y\x89\x12\x1bR^\xcfA\xca\xb4(\xa4\xe4\xf4\x00\xe0\x9f k*V\xf4\xd4\x96\xe8Y\xc5\xc5\xec\xc5)J\xc9\x81JR\x80\x14\xa5(\x01JR\x80\x14\xa5(\x01Vf\xf8\xef\xce\xd6\xf0\xe7\xb7\xd3\xb7;w\xb5d[=\xa2\x03*q\xe9\x12]Jy\xb03\x84\xe4\x8c\x9f\xd0\x0c\xf5"\xab:\xff\x00]\xe9\x8d\xb3\xd2\x17\ru\xacnm\xc4\xb7[c\xa9\xe9/-@t\x1d\x80\xcfrO@=M~d\xfe&lt;\xff\x00\x17\xbdI\xc7N\xf0\xabi\xf6\xb6\xe2\xdcM\x1d\xa7\x9c[IirT\x04\xa7|\xc1)\xe8\xa4\x8c\x12Ou\x12{\x00\x90\x03\xd4#\xce[\x12\x03\x8f\x8f\x8fN\xe7q\x1f\xb8\xd7=+\xb0\xd3\xa5Z\xf4\xa5\xb8\xad\x0cK\x83so\x92Si=\x1dJ\x14\x9c\xf5=\x018R\xb2p\x120\x04\x12\xde.&amp;\xb7&amp;\xf9%:\xcfp5U\xce\xde\xdc\x85\x16\x13\x19\xbb\x8a\x9d~`\xf2O!R\x86:\xf59\xe9Q\xfbN\xee%\xd2\xc1%P\xae\x8dC\x9d)\xd5!\xfehq\x8eR\xb4\x8e\x80,\xf6\xc7J\xb8\x06\x82\xd5\xfb\xa2\xa5kk\x8cy\xab\x93-e\x00\xbe&gt;\x86\x07a\xc8?\x88\xd72\xeba\x19~#\xe8I0\xe9\xb2U\xf1\xaa=J\x83|G&gt;\xfd\xccJ\x89a\x8e\xecx\xcb\xca\x9eQA,\x0ftr\x90\xe1\xff\x00\x17\x95d{7\x1a7\x1b\x14\x03+muc\x89y\xb6y\xe5F\x99nJ\x92\x94\xe7\x05I(X\x18\xcfs\xcb\xfa\xd67\xb6p\xa9u\x84\xc8]\xce4\x98\xf2\x01&gt;\x14\x96;\x8fb&lt;\xb3\xe9G\xb6\x02\xe3\x16C\xcf\xd8#\xbf\x12km\x80\xe29y\x83\xe9=\x0fO#K\xca\xdc)\xad\x87~\x9bR\xab\xd2^\x17.+\xb7Nm\xc9\xeb\xbd\x93R\xca\x0c s]\xed&gt;/&lt;bH\xeb!\t\xf4&gt;i\xaf\x1c&gt;&amp;\xaf\xd7K\x8b\x0fZ]1B\xd6\xa7\x13\x15(\xccuaC\xa1\x1e\xbe`\xfb\xfbWm3\xc3\xee\xaf[1\xa37oz,\x98\xc4\x84M\xee\xa5\xa4\xf5\xe5#\xcc\x0fJ\xbd\xac\\\x0c\\5\xc4g\xfc;\x92`L\xea\xb3\x8f\xe3W\xae&lt;\xb3\xe9Ze\x99\x87Z\xd9w\x1a\xabO\xd4\xac\xea\xc9q\xc0\x0f\x1d/\xea\x8b\n\xf6\xaf[\xce[s\x9aR]\xd3\xb2\xd4r\xf3\x0f\xb6\xb0\xb55\xfeE\x01\xcb\x8fz\xdf\x8f\r;\x98\xf6\xea\xec\xf5\xa7TO\n\x13\x90\xc8\x8fp\x0e\x1f\xa8\xba\x80\x01Q\xf7P\xc2\xbf\x15\x1a\xfc\xa7l\xd6\xccn\xa6\xcbo\xa5\x96\xcfy}\x01\xc5\xdc\x12a?!Xm\xdf\xa8t\xcf\x99\xe9\xdb\xce\xbfA\x9c\x14\xf1i\x0bDO\xb3m\xb6\xa8T\x18Qn\xfc\x86b\\&lt;\xabm\xf2\xdaS\xe2#\xae\x03y\x03 \x8e\x80\x93\x9e\x94\xee&amp;UM\xf1\xdf\xb9\xc2\xd5\xb02"\xf9\xed\xdb\xb99i@A\x19\x14\xae\xa1\x1f\x14\xa5(\x01JR\x80\x14\xa5(\x01JP\xf5\x06\x804\xe3\xf6\xac~!\xc3g\xf6\xa6\xcf\xc2n\x83\xbe\xb8\xd5\xee\xfc\xfad]C/\x14\x86\xa3\xe3$/\x1dFR@I\x1d\xf9\xd6&lt;\xab\xf3\xff\x00m\xda[\xa6\xbd\xb81*\xc8\xdasq_;iqJ \xa0\xf7!\xc5v\xad\x9d\xfd\xab]\xb1\xb8\xb3\xc7\x1f\xf6\xba\xe2\xe0CrlL&amp;\x13a\xd4\x8f\x18\x05)k\'=\x82R\xb4t\xf3\xcdEN\x0b4\x14[\x95\xc6\xd5&amp;\xe3\x0eD\x85\x08!E\xb7@\xe5O\xb8\xc7\x97\xb5\'\x9d|\xb1\xf1\xdc\xe2u4\x8cU\x97\x9b\x182\xad\xb1\x1c,?o\xb6\xfc\xa6\xa9\x8f\r\x08Z@.\xa5&lt;\xeaH\x1d\x92\x93\xe6&lt;\xcf\xb9\x15\x9d\xac\x1bSk\xb3Fi\x84\xc4am\xb40\xdb\x01\x1c\xa8hyc\xde\xaf\xbbU\x96:\x14\x86\xd8e\xb4\xa5)\xc0K}\x85\\\x11t\x89\x9b\x87\x80\xefP\x1b2n\xcb\x9b\x93.\n1)\xc3\x84b\x91\x8e^\xd2\x91\xd6\xac7\x1c\xbc\x9c\x0f\xa9C\xb7\xb7\xe5^\xfb&gt;\xde[\xae@x\xb6\xc1\xcc\x93\xd7\t\xf2\xac\x80\xfe\x83Q\x08P\x1eup@\xd2LD\x8a\x94$~\xf4\x0e\xd4\x95\x96\xd9\x17\xc4s\xe9\xe1(\xf21\x9b\xda&gt;;8n&lt;~@\x91\xdb\x15\xf2\x8do\xfd\x93$(\x1c\x11\xd6\xb2\xa3\xba%\xf9i\xf1\x9fO^\xdd=*\x9fr\xdb5\xa9\xa31#\xd8\x1a\xd1+g%\xd0b5AE\x16\x06\xa7\xd3\xf05\xd6\x9e\\I\x10\xd9[\xcc,;\x11\xf7\x11\x852\xeaz\xa5a_\x8f\xfc\xd6\x1a\xbd\xf1\x85\xb83w\x19\x9d6o\x93\xa0\\\xad!)q\n\x7f\xaf:N9\x93\xef\xf7T?:\x92(\xb1\xa2\x0b&gt;\nA\xca\x9c\xc5B^\'\xf6\xd3S[\xb8\x83F\xa6\xd3\x05\x92\xea\x9e\t}\xa7\x8e\x02\x91\xd7\'\xf2\xae\xd6\x8bu\x92\x9f\t\x11\xbd\x7f\x16\xb8P\xec\x89\xfa=\xf8A\xf1t\xbe,\xb8L\xb6\\oWTJ\xbei\xec[\xee\xae\xa5|\xdc\xfc\xb9\x08V\x7f\xd2G\xe0\x05J\xb00I\xf5\xadR\xfd\x97\xadj\xdd\xdfm7+K\xf3\xb6\xb5\xc5\xbf4\xf1[}\x88Z\x01\xe9\xed\x95\x1f\xd2\xb6\xb4N\x08\x1e\xb5`T\xdb\xadnS\xf7$\xaci\nR\x95\xb0\xd6)JP\x02\x94\xa5\x00)JP\x07\xe7G\xedd&lt;\xdc\xbe94\xfd\x96\xe6\x85\xa1\x97\xb4\xeb&amp;\x1c\x83\xf7\x12\xbeDs\x7fJ\x8e\x1c\x1dF\x85\x12\x146\x8b\xc8*C!%m\x9e\x86\xa6\xf7\xda\xf3\xda\x19\xaa\xd5:\x0ft\xe2\xc8Iml\x96\x9dg\x97\xaa\xcfD\x81\x9f\xfb_\xefP\x97\x82\x9d;r\x99\xa7\xda\x92-\xcai\x98\xae\x00\xfc\x82:\x11\xe9\xf9v\xae&amp;\xb2\xdf\xd3\xb2Y\xe1\x8a\xf9\xe4\xff\x00\xef\xb1\'l0\xd9\\\xa0\xa6\x07\xd2M_V\xb6\xe1G\x8c\x94=\x80\xac\xf5\xab.,\x98\xd6\xf9+\x9546\xcb\x08\x19\x0e-X\xc8\xaf\xad\xa7w45\xde\xe1\xf2\x10\xb5$E\xb8\x93\xcb\xc9\xccq\xfa\xf6\xa8~-r\x94\x1f\x12\xca\xb6\xe8\xa8\xa5"\xf3\x919\x86_\xf0\xdb\x00\xa7\x00\xd7\xa2$\xb0\xea\xb9\xf1^Xq\xa1\xceP\x92\x99\xedaC\xa0m`\x8f\xd4Uv\x06\x9cL\x86\x83\x8d;\xcc\x9c\xfd\xe1JdUz\x90\xe56R\xe0|\xcd\xd1,5\xc9\x8f\xf6\xae\xf6\x87E\xc1Js\xcb\xb6+\xd2\xbd=\xc8y\t\xcdS\xf5\x15\xff\x00I\xe8\xa8\x1e5\xea\xfc\xccgI\xcf\x84\xb7BN&lt;\x8e+Mx\xf6\xce]B\xeb\xebP\xf4\x9e-GlB\x1d\x12\xf9G*\x89N1P\xfb\x8d\xfd2\xc4[z\xae\x9e!J\xd6\xb2\\[c\x95iH\xf4W\xa7^\xb5.\xed\xba\xd7Mj\xa6J\xed\x17\x96\x9e\x07\xa0RV\x143Q\xc7\x8f=7}\x8d\xa3\xd3xj7\x8d\x11K)[\xa0tJ\xb3\xd1?\x9fj\xe8i\xc9\xc35#\x8f\xab\xcdY\x81?\xd0\xda\x8f\xd9\xad\xda[v\x82\xe0\xc6f\xa8\x8c\xca|[\xcd\xcc\x058\x0ez7\xce1\x9f?\xe1\xfd+cu\x0b\xfe\x02[i\xa96\xd3\xe1\xcb\xa5"\xea\xc8\xaaf\\\xf7\x9d\x94\x94+\xfe\x92\x82yO\xfc\xfe\x954*\xc9\x87\xe4E/c\xdelR\x94\xafg\x91JR\x80\x14\xa5(\x01]V\xb4\xb6\x92\xb5\x90\x00\x19$\xd7j\xb7\xb7a\xf9q\xb6\xbbRH\xb7\xf3\x19\r\xd8&amp;)\x8eN\xfc\xe1\x85\xe3\x1e\xf9\xa1\xf42\x96\xefcK\x7fj\x0f\x89N\x1ew\xb7m,:gAk\x86\xae7\xdd-}[7\x0bpG)q\x05\nW3j\xcf^S\xdf t&gt;\xf5\x17xB\xb4\xa6\xd5\xb1VGCE%\xf8\xbe#\x89ZprN~\xafSU_\x88f\x83\xb4\xdf6\x86\xf5x\xb9\xd9Q\x1e\xf4\xd5\xdaC~"\x9a.-`8J\x94}\xf1\x9e\xbe\xd5\xc7\x0b\x8f6\xad\x98\xb0J\x9a\xf1*1\x009\xf3\x19\xf4\xa8\x96\xa1\x9a\xb2\xa8m{2\xca\xd14\xa7\xa6e\xed\xbe\xfb\xc5\x1cn\x06\x9a\xd4{\x814\xd9\xd5&lt;\xc5\xb4\xa4\x8f\x19\xdel\x05z\x82|\xaa\xcb\xd5\xdb=\xb2\x1av\xd6\xd9\xb9\xee[6\x90\t\x08q\xd9\xa5&gt;"\xbd\xc6{V_\xd7N\xb3\x7f\x80\xbb\x1d\xa9a\xaed\xfe\xf1C\xa0"\xb0\xce\xf5p\xcf\x1f\\\xedB\xf4\xed\x9eDF$G}kv[\xe0\xa9\xd5\x85aX\xfc\x01\x18\x04u\xa4\xf4\xec\x98K\xd0\xde\xc7W6\xab\x92\xe5\x0e\xe7\xa7mu\xae\x9d\xdb\xfb\xd3V\xed5\xbc\x02yyC\xc2\x8a\xb5\x12\xdb\x80\xff\x00)5.v\xebS5t\xb2\xc6-\x12\n\x9c\x1c\xe0\xf9\x1f:\xd7\xb6\x9b\xd2\xe2^\xac\xb5\xdan\xd6\xd8l3\x11\x96\x9a\\\x87&gt;\x95%C\xba\xd3\x8fq\xda\xa5\xe6\xc8k\t\xf6\x88\x8dB~X\x94\x0b\xdfC\xdc\xb8\xe7O\x91\xc5\'\xa9\xca\n^\x99n;\xa5\xd3)Ciw.\xed\xea\xd5\x12\xb4\xcc9\x8bn\xf8\xd4\x048HT\xa7\xd7\x8eC\xe5\xcb\xd7\xa9\xa8\xf5\xa34v\x95\xd5z\xb5\xc9z\xcb{!\\$\xbar\xd4\x19\xce\x85(\x92z`(\x8e\x95tqwf\xd4W\xf8/]\xd8\x90\xd3\xa9e\xcf\r\x98\xee+\xa3kY\xfe\xf0\x8f\xe2&gt;@{\xd6-\xdaN\x1b/\x1a\xd3z!nE\xda\xdd\n4X\xb1\xbc\x19\x10\xa60U\xce\xa1\x8e\xa1_\x88\xe8|\xb2k\xde\x05\x95\xba\x9e\xf2\xe3\xf7\xff\x00\x86\xadF\x8b\x15\x8b\x89 \xec\x1b=\x13K\xdc\x9b\xbai\xd9C\xf7`-A\xb7\x08@\xf5\xe8:u\xaex\xa0\x8d.\xef\xb1W\x16\xd9H\tQmKB\x942\xdf\xd4\x07L\xf9\xf7\xab\x8bJivv\xfe\xea\xec\x88\xd2V\xb8\xcf\xa8\xad-\x15\x92\x84\x13\xdd)\x07\xb0\x07\xca\xa9\xfcD\xad\xb9\x9b7\x7f\x94\x94\x0c|\xb2H\xe9\xdb\n\x06\x94\x86O\x0c\xd5\xee\xbeC\xe9\xad\xb3\x16U\xcb\xfd\x93_\xba7O\xc0\x8c\x1bM\xa7\x84\x8d\x0bf\xb3KK\xcdD\xb1\xa1\xb2\xa0\xb0HW2\x89\x07\xdf\xade\xcc\x1e\x83\xf1\xa8\x8b\xf0z\x99p\x7f\x87\x85\xb5.[\x8e\xa5(\x88\xa4\x97\x16O^G\x10{\xf6\xe8\x84\xfe\x82\xa5\xd8\xeb\x83\x9a\xb1\xe8\xb1[Tf\xbd\xd1O\xe5P\xf1\xb2gS\xf6m\x1c\xd2\x94\xad\xc2\xe2\x94\xa5\x00)JP\x02\xbeo6\x87\x9bSN )*I\x05*\x19\x04z\x1a\xfaR\x804\x8f\xf1\\\xd9x\x9a\x17{\xf5V\xd1\xdam.\xb6\xadD\xc2\x9e\xb2:NZ\n\xe5\n\x08\'\xd7\xc3)\xc9\xf5&amp;\xb0&gt;\xd2hg\xb4\xc6\xda\xda\xb4\xcc\x82\x82\xf4x\xc08Q\xd4\x05y\x8a\xd9\'\xc6\x07k\xad\xb3w\n\xc1\xae.1\x16\xa4\x88\xe8\\w\x13\xd8&lt;\x90\xb4\x11\xfa\x04\x7f\xe4*\r[\xe1\xb4\xd3\xcam\x96\x12\x94\xa5\xc5\x0c\x01\xefP\x9dV\x97]\xb3\x8a\xf7{\xfe\xe5\xa3\xa0dy\xf8\x95\xcd\xbe\xa9m\xfb\x16\xea\xb4\x1a\x9d\x1e;\x0er&lt;:\xe5]\xab\xc3wu\xc8,\xaa,\xd2\xd2\xd6F9\x92\x91\x8a\xc8\x89\xb7\xfc\xcb\x9e\nR\x06}*\x95\xac6\xfe+v\xc7nSO"\x00\x1c\xbe\\\xc7\xda\xb8\xd4\xd4\xd4\tJ\x94\'\x1fQ\x8a\x1a\xdb\x8d6\xfc\xbf\xda.@C\x92_WD\xf2\x0c$\x0e\xc4zU\xdd\xa6mq\x1b\xb9E\xb7\xc1k\x904z\xfe5Q\x80\xc4\xb9\x16"\xd5\x8a\xd6\xd3\x1c\xdfy\xf9 \x02\x84\x0e\xe7\x98\xd5_E\xe8\xa5\xc8\x02u\xbe\xe4\xc8R\xde\x19&gt; ^G\xf3\x02=k\xdc\xa8\xe6\x98\xdd\x1eMm3\x9dK\xa1`\xea\xd6\x8b\x93\xd29PF\t\x1d\xc8\xaf\x9e\x8b\x80\xde\x98!+BJR\xb2\x94\xf3\x0f*\xc8qt\xec\x9b=\xe1-\xc4~4\xd4\xac\x81")Ry\x94\x0f\x98\x07\xd2\xbcw\r \x89\x1a\x91v\xb8\xd0S\x1di\xc2\xd0\xdb\x87\xe9)=\x884\x8cq\xda\x8b\xdc\xd9j\xa2\xc9\xeex\xe6X\x97\xaa\x1dK\xf1\x80\t\t\x1d\x00\xe9\x9a\xf1\xeb=\xbd:\xb3D\xdc\xb4c\x8e\x06\x84\xc6R\x95\xbe\xae\xc9\x01@\x91\xf9\x80j\xfa\x87hr\x04p\xc1l\xa1I\xef\xd3\x15\xdd\xabxy\xd3\ri\x07\xc7\x04`\xfa\xe2\xbcW\x0e6\x9c\xfc\x9b+\x85}\r\x82|-\xac\xf68&lt;7"\xe3b\x1f\xb8zpm\xbf\xf2\xa1\x94(\x7f\xf45%z\xe3\xf2\xac-\xc0e\x95\xbb\x1f\x0e\xd6\xd6\x19\x8e\x96\xd0\xa9\x0b\xe5J\x13\x81\xf4\xa1\xb6\xfa\x01\xee\xd9\x1f\x95f\x91\xd4g\x1d\xea\xd4\xc4\\q\xa0\xbe\xcb\xf8)\x0c\xf9s\xcc\xb2_w\xfc\x9c\xd2\x94\xa6EE)J\x00R\x94\xa0\x05)J\x00\xb27\xbf`\xf6\xe7\x88\r0\x8d-\xb8\xb6\xd7\x1ei\x97\n\xe3\xbe\xc3\x81.4N3\x82A\x188\x19\x04\x1e\xc0\xf7\x00\xd6\xa7\xf8\xaf\xda8\xdb\x15\xbf\xd7\x8d\xbf\xb2B\xf0\xed\xed&lt;\xa1\x13\x98eE\x03\xa8\'\xc8\x12\x92\x93\xd3\xa7Z\xdc\xb1\xfaF{\xe2\xb5\xdb\xf1\x82\xdb\xc6l\xdb\x89g\xdc8\x80\xa7\xf6\xa4NW\xce\x07W\x10\x0bg\xff\x00P\x83\\\xddN\x95n,\xba\x1d\xcd\x032x\xd9\xaa;\xf4\x97B\x1e\xa9\xb5D\xf0\xe4\x85\x9f\xab\x07\xa1\xa6\xa1\xd4q\xe76-.%*\xe4H%*\x19\xae\xec&gt;\xdb\x8d!\xd09\x90\x80\x02s\xd7#5jj\xc8z\x8e\xc9\xf3sl\xd1[\x90\xe9\x94T\x10\xf3\xbc\xb9I\xec\x90O\x95A\xaa\x8b\xf3\\KR\x16\xb5\x05\xb1\xc5\xe10/\xac\xae\xde\xe4d)(NV\xda\xb2\x03\x89\xf3\x1d:\x1a\xfam\xf6\x89\xd1\xba&lt;J\x97\xa6\xa1\xc8a\xb9E\x0e8\xc8\x94\xa5%\n\xff\x00\nI\xfaG\xe1V\xa5\x97t5\x83\x97\x17-\xd7\x8d\xbcL5\xa1g\x95b@XX&gt;\x98\xab\xb5\xadO\xa7\x90\xda\x0c\xbb\\\xc6\xc1\x1fRZI\x04\xab\xcct\xf2\xae\xbf\x97\xc2\xad\xd27\xd7\xbd\xd2\xe3&gt;\x85\xc5\x03Gi8\xf7\xa3\xab\xad\x91_3\xde\xfe\xf5\xd7&amp;\xadX\xf5\t\x04\xe0\x0fj\xbb\xa1\xb8\xcb\xa1 4\xb0\xeb]P]\x1fQ&gt;\x99\xf4\xabgL\xeb;Ao\xe5\xed\x9a2^\x12\x9c\xf3\xcaa\\\xbf\x91\xce+\xbb\x1a\xde|\xdd@\xd4(\xdavkmr(\xaeW \xf0\xc2\xc1\xe8\x91\xe7\\\xec\x88\xc1\xc5\xfc\x9b\x1c\xa7_Ob\xfaD\xf5JB\\t\x92\xa00\xac\x9c\xe0\xfaVA\xe1\x8bi\xe2\xee\xfe\xee[\xf4\xe4\xd9\x05\x0c:\xeaR\xa0\x9e\xa4\x0c\x9ee\x00|\xd2\x9eb&lt;\xb2\x06k\x1cZ \xb4\xf3\x92\x16\xbed6\xe3\x89#$\xf4P\x195-~\x19{c*f\xb4\x91\xb8o\xa3\rC\x8a\xa5!i\x1f\xc6\xb0\xb6\x90\x0f\xe2\x92\xe9\xff\x00G\xbdx\xd11|\xfc\xd8\xef\xd9=\xc8\xd7\x88s~\x9fO\x93\x8fw\xd0\x99\xfaKLYt^\x9c\x87\xa5\xf4\xec!\x1e\x14&amp;Cl4\x9e\xb8\x1d\xc9\'\xcc\x92I\'\xcc\x92j\xa7JU\x90U=\xc5)J\x00R\x94\xa0\x05)J\x00R\x94\xa0\x0e\x13\xfd*\x19|d\xec%\xfd\xa8\xd3\x9a\x91\x03\xea\x89qu\xa2\x0fc\xcf\xe1\x91\xff\x00\x06\xa6j\x7f\xa5E?\x8b\xd3(W\x0c\xcc:R\tn\xec\x9c\x13\xe4yI\xfe\x94\xb6g\xf8\xd3\xfd\x074\xfe\x99\xd5\xfe\xab\xf95\x87l\xb8\xb9\x19\x1f!%8[\x87\t\x1e\x9dk\xd7%\xd6\xa7\xc9\xf1\\i*\xc0\x00\xf3\x0f1\xd2\xa9\xca\x86\x89\xcc\xb4\xe2\x9e\xe5\x90\xd8\xcbK\x07\x18\xfck\xc6\xde\xa1\x94\xd4\x95F\x96\xc7\')\xc1P\x18\xcf\xbd@!\xca\xd9)D\xb4\xe7c\xc7\xee\\2,l\xdc\x00y\x98m\xad\xe4u\x04\xb6\t\xaf\xa4wn\x88-\xb6\xbb\x1b+\xe5_u\x00+\xcbg\xbc\xa0(*&lt;\x85\x10{\x9ecW-\xb5\xe8\x12T\x97^P\xe6\xcf\x9fZc\xf1\xe0\x87q\xf3\xe3%\xc8\xac\xdb\xe3\xcb\xbb\xc5CR\xa1%\xb0\x91\xd8\x00zW\xdeDHm\x10\xd3M\xa5A8\xee&lt;\xeb\x88\xf7\x16\xa3\xb0\x10\xc3\x9d=A\xaf$\xa9\x8c\x87\x0b\x8d\xb8y\xff\x00\x90\x1e\x94\xac\xab\xb3~R&lt;]\x9a\xe4\xf6E\x7fMA7\xeb\x94[\x02\xdf\r\xb6\xf3\xf9Z\xbc\xf0\x0eN?J\xdag\x0f\x1bSe\xda-\xaf\xb7\xe9\xcbK\x08\x0e\xbc\xc2$Mu)\xc7;\x8aH\xe9\xf8$a#\xf0\xc9\xeaMj\xbfk\x1cjn\xbe\xb5\t\xcf\xa5\x9eg\xd4\x9f\xa8\xff\x00\x84\x91\x81\xeb\x9a\xdc\x15\xa7\xe4\xcd\xb62\xad\xef%\xd8\xfe\x02&lt;\x07\x12\xae`\xa4`r\x90|\xf20sR\x0f\x0cW\x1f"r\xf7\xdc\x82\xf8\xb6v\xac\x88B]\xb6\xdc\xf5R\x94\xa9Q\x10\x14\xa5(\x01JR\x80\x14\xa5(\x03\x80\xa0N\x01\xaek\xaf2\x1bI$\xf6\xefQ\xe7\x8aO\x89\xd7\t\\)Cu\x9de\xb8\x91\xeeWt\x82\x1b\xb2Y]K\xef)X\xc8\nP&lt;\xa8\xf4\xeaI\x1e\x94$\xd9\x94\x9b3\xf5\xd6\xe9\x12\xcdk\x93w\x9c\xb0\x96"\xb0\xb7\x9eV;!)*\'\xf4\x06\xb4\r\xc5\'\xc5kyx\xb3\xe3\x86\xef\xb2\x0f\xde\x04\x1d\x17ma\xdf\x90\x80\x929e\xb8\x15\xd0\x85g\xe9@\xc0\xce\x06U\xca\t\xc9\xab\xe7\x8f\x1f\xb4y\xb9z\xf7N\xdcv\xafc\xb4\x94}-\x16\xeb\x11\xf6L\xe5&gt;$Mu\xb2\x83\x94\x83\xf7Q\xd3\xb9\xecz\x8e\xa0\xd6\xa8\xac\xfa\x96E\xabp`n\xc5\xbeb\xdb\xbd\xda$e\xa9n\x82\xa4HJ\x8eKn\x0fC\x9f\xbc;yV\x8c\xbal\x9e4\x92\xf8\x1e\xd3\xe5\x1a2\xa19\xfc\x9b9\xb7\xb4\xb5\xc7\x01\xc5d\xf6Y\x1d\x94G\x98\xf6\xae\xb7{\'\xed&amp;J\\&lt;\x98\x1fB\xc7B}\xb3V\x97\x0f[\xf1\xa2w\xb6\xd2\xdc\x9b,\xa4\xb3wa\tM\xc6\xd0\xbc\x10\xd2\x88\xee\x92\xaf\xbc\x83\xdc(u\xc5e;\x8d\xa2O\x85\xc8\x88\xc8\xe5\x1f\xc9\xf5\x00}\x8dV\xaf\xcd\xc4\xb1\xc6_%\xb6\xe5Fm1\x92\xf81t\xa4\xea\xbd8\xf1LX\xae:\xd8\xee\x94\x93\x9cz\xd5N\xc7\xb9W\x18\xca\x10E\x8aB\xcerT\xe2\xd3\x90}&gt;\xa5f\xaf\x9bD`\x85rKh)y9*\x1dqW-\x9e-\x95\x8c)v\xc4s\x13\x92\xa4\xb4+k\xd5\x1dp\xe8*\xb4\xd5\xcfx\xb2\xd1\xb0\\\xf5U\xf9iR-O2\xd2\xbas\xa9Y\x1f\xecH\xab\xb6\xdfcv+\x9c\xf2\x96\x97O.I\xef\x8a\xad*I*\x11\x99l\xa5\x82:g\xd6\xba\xbd\x12\x0ch\xee\xbd\x19jS\xce\'\r\xa7?N\x7f\n\xe7_\x99u\xdb\xaf\x91\xea4\xf5\xd7\x97\xb9an\x96\xafV\x8b\xd2\xf7\rb\xc4\xd1\x1dV\xa8\xaay\x87y\xf9Kn\x82\nT\x08\xf3\xc8\xad\xa5|3\xf7\xdd\xad\xf5\xe1Z\xc1y~\xf2\xd4\xb9\xd0\xe3%\x99\\\x8b\xca\x80\xc7r?\x84\x05\xf8\x88\x03\xc86\x05h\xe3\x8fM\xdc\x8c\xd4\xeb\x1e\xc2\xdb$%\xe9\x17\x89"m\xf1m\x9f\xee"\xb4\xac\xf2\x9fu+\x1f\xa1\xab\xdb\xe1\xbf\xc5\xf6\xfa\xf0\xdb*f\xb5\xd2\x175\x8bC\x13\xdd\xf9\xabt\x870\xd3\xcd\x929\xbe\xfes\xd8v\x18\xe8\t\xc6\x01\x13\xbf\x0b\xe2N\xbc&amp;\xfeHW\x8b\xa7\x0c\x8c\x88U\x0e\xf1[\x1f\xa1eg\xc8W\x19P\xeaEE\xae\x16~*\x9b\x11\xc4\x1ch\xb6\xcb\xd4\xe4YoN\xa4s\xc4Z\xb2\t\xf5\t\xc9V\x0f\xaa|D\x802T*O[.\xd6\xdb\xcc\x16\xeeV\x99\xec\xca\x8e\xf2r\xd3\xf1\xdc\x0bB\xc7\xa8P\xe8jF\xd3O\xa9\x07\x94%\x07\xb3G\xa6\x94\xa5`\xc0\xa5)@\n\x8b_\x10?\x89v\x9a\xe0~\xd6\xa6\x1d\xdb\xc9\xf7\xbb\x8a\xd8J\xd8)u\x08e*WT\xf3}ADz\xe3\x18\xf7\xa5++\xb9\x95\xdc\xd4?\x17\xdf\x1a~17\xf6\x1b\xf6\xe8\xfa\xb9zn\xc6\xf9\xca`Y\x95\xe1\xadM\xf3c\x95J\x18\x19\x07\xb2\x80\xc9\xf5\xf2\xa8}|\xd5\xd7k\xb4\x95\\.\x93\xdfy\xe5%Re&gt;\xa7\t[\xc7\xbf\xd4I%G\xdc\x9aR\x9c\x8aIt\x1b\x8aJ\x04\x7f\x7f]I\xb8\xeb\x99Z\xeab\x16\xbf\xd9\xb3\x04T2U\x93\xc8\xe7\xd3\x81\xe81\xdcU]\xc6\xdd\xd3\xf7\x87\x8b\x0f\x17#\xb8\xa2\xa6\xdas\xa8BO\\c\xb0\xa5(\x97\xe6B\xb3ob\xf8\xdbMe\xa9t\xdd\xf5\x8b\xf6\x9a\xbb\xbb\nl6\xf9\xd8\x98\xd2\x8f;#&lt;\xb8\x038ZO\x9a\x15\xf4\xe2\xb6\x13\xc2w\x10W=\xe0\xd2\x8fG\xd4\xd6\xb4"\\\x00\xa4&gt;\xeb\x00\x04:\xb4\xab\x90\xa8\x0f,\xf7\xc7\x95)P\x7f\x12U_\x9b\xbe\xc4\xff\x00\xc2\xd6N\xca}Os/[\xed\xb0\xa4\x91%l\xa7\x98\x8f\xe4\x15Yj#\x11\x92\x10\xdbc\xd7\xb5)PY\x7fq\x93(\xa5\xe6\x1fr\x94\xbd\x146R2\x0es\x8a\xb4wkq\x0e\xdd\xe8\xd9\x9a\x9d\x88&gt;*cGQK \x01\xcc\xa0:\x1c\xf9~T\xa5\x15uk\x7f\x93l\xbf!\xad\x8dg\xa9.\xda\x9bqo\x1b\x85\xa8$)\xd9oE\xf1\x12B\x89(I*\xc2\x01&gt;B\xbc\x1a\x1fr\xb5\xbe\xe0^\xad{c\x16\xe6!\xda\x99t;&lt;#&gt;#\xe1G\xa2A\x1d\xbbu\xf5\xa5*\xdd\xd1\x92X(\xaau\xc9K\xfa\x9fs8\xea\xab\xb5\xfbH5c\xbdY.*l75\xd8\xe9\xe5QJ\xd2\x9c%i \x8f1\x923RW\x86\x8f\x8b\x1f\x12[\x05)\x0e\xbf}v\xf7mJ\x82\x9d\x8d5\xc2\\Z@H\xe5+$\x85`\x10\x01XV\x07\xdd\xe4\xeeT\xae\x8c\xd2\xe2-\x91\x08\xba\xd7Cg\xbc9|B\xa6q\x1b\xa7\xa0I\x8b\xa3\x8d\xad\xe9\x84!o\xa5`\x84\xaf\x97\x98\xe1\x04\xab\xa7\xbf7\xe5R?I\x85M\x80\x89\xaf\xcau\xd7\x142\xa58\x7f\xa0\xa5)w\xdc\xe3\xb4\x91Z\xa5)X0\x7f\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x07\x08\t\x03\x04\x05\x01\x02\n\xff\xc4\x00?\x10\x00\x01\x03\x02\x05\x02\x04\x04\x04\x03\x07\x03\x05\x01\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!\x081\x13"AQ\t\x14aq#2B\x81\x15\x91\xa1\n3Rb\xb1\xc1\xf0\x16$\x92%\x82\xc2\xd1\xd2\xe1\xff\xc4\x00\x1d\x01\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x05\x07\x03\x04\x08\x02\t\x01\xff\xc4\x008\x11\x00\x01\x03\x02\x04\x03\x05\x06\x06\x02\x02\x03\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x06AQ\x13"aq\x81\x07#2\x91\xa1\xb1\x14\x15BR\xc1\xd1\x083b\xe1\x16C\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xcc\x18\x10\x8c\x18\x10\x8c|\xf8\x89$\x84\xa8\x1d\xbf\x9b\xe9\x81\t=\xa8\xba\xa3\x914\xa6\x82\xac\xcb\x9f\xf3$ztT\xa8%\x05\xd5]o,\x9b\x046\x81u-D\xf6JA\'\x11\xcf\xa9O\x89\xee@\xd3\xba4z^\x8d\x88\xf5\xaa\xfc\xe6R\xeb\x7f8\x85\x88\xf1\x1b*\xdaK\x9blT\xb0\xa0S\xe1\x82&lt;\xc0\x82E\x8e#\xab+\xe1\xa5i\x17\xef[o\xb2\xde\xa3\xa1\x96\xa9\xc0\xdb\xbb{]D\xea\x7f\xc5\xd3\xaa:\xded\x97A\xa4\xe7\xeaKk\x90\xa2\xdbr\x1f\xa42\xa6\xe3\xb8\x08\xbf\x86\x80/ap,\xb2\xab\x93k\xdf\n\xa6&gt;0\xda\xf9\xa7\x94\xc8og\xc8\xd9Z\xb5\tHk\xc4\x98^LY\x8e\x02S\xb9j\xda\x0bh\x1f\x9b\x90\xd1\t\xe3\xbf6Wn;\x89GP\x03\xc0 \xf8&amp;\x8f\xc8p\xf9!%\x84\x82&lt;T\x84\xd3_\x8a\xee\x84g8\x90g\xe6*\xd2\xa8I\x9a\xf2\x1aK3io--\xdc_\xc4\\\x84\x1f\x0c7oP8\xf5\xc4\xaa\x835\x8a\x846\xa7Dy\xb7\x1by\x01m\xb8\xd3\x81IZH\xb8 \x8e\xe0\xfb\xe1\xa6\x83\x10\x86\xb9\xa7!\xd4n:%z\xea\t\xa8\\3\x8d\x0e\xc7\xaa\xd8\xc1\x89\x05\xa2\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c6\xfdL\xeb\xcd\x1f@t\xf1\xea\xfb\xce6\xe5Zr\xc4&lt;\xbd\x06\xc5J\x911\xc2\x10\xd5\xc0\xe7`Z\xd3\xb8\xf0\x00 ^\xea\x00\xe2\x95\xf9#.\xe8\xbd\xc2\xce\xd2@\xde\xaa\x0b\xfc@\xb5\xda/N49\x14\xbc\xc1X\x95\x9a\xb5\x1a\xa9ClC\xaaLd\xa8B\xde\xa2\xa9+\x8e/\xf8\nW\ti)6H\xe6\xc4\x92UW\xd9\xf3\xab5\xa9nO\x83G~4\xcf\x0c\xf8\xf5F\xe3\x15,\xa4\xa3j\x94\xe2\t\x05.$\x01\xb9I\xba\x00=\x94AN\x15\xaar&gt;\\\xb7\xb9\x1b\xdf\x99\xe6\x9a\xa9\x1a\xe1\x1ekX\x1d\xbc\x02De^\xa0\x98\xa7\xba\xd5S2\xaec\xcd2\x9f\x1d\xa8\xf1[Y\x0e\xa1.X\xdbq\xfc\xc5v;nI\xb1\'\xb0\xc2\x8eF\xb7g\xedR}\x99\xf5p\xf2b\xb6\xa0\x86\xa3\xa1&gt;\x1cv\xdb\xb1&gt;\x1d\x9d\x16Z\xc1\xe0)W\x06\xe4\x84\xdf\x9ca\x92\x08\xcf}\xdc\xb6[Q\xc9#{\xa3\x9a}\xe9z\xd7\x93!d5Ss]Y\x9a\x95S\xc1J!\xd1W0\xfc\xaaO\xaaV\xa5\x00o\xfa\x94O {\xde\xf8\x93\xfd0u\xfd\xad\x9aO\xa7\x90\xf2\x9e\x99\xe6\x18\x93#\xd3\xe4\xb6UI\xcc\x1b\xe4\xb6\xe0R\x86\xf6c\xdda\xd4\xa3\xcd\xbbx!\t\xe0\x04\x9b\xf1\x11\x0c\xd58t\xfd\xb3\r\x85\xf6\xea9\xa99\xe9\xe9\xeb\xe9\xfb)\x05\xcd\xb4&lt;\xc1\xe4\xad7N\xb5\x13,\xea~W\x8d\x9a\xb2\xc4\xf4\xbc\xcb\xcd\xa1KM\x88-\xa8\xa4\x1d\xa6\xe0{\xf0{\x1e\xe2\xf8P$\x80;b\xc5\x8aF\xcd\x18{v"\xe3\xd5W\x12\xc6\xe8d,v\xe0\xd9}w\xc1\x8c\xcb\xc20`B0`B0`B0`B\xf0(\x1b\xf3~1[\x7f\x16\x8d^\xc9\xda\xb9\xaa9o$\xe9\x0ez\xfe!X\xca\xb1j-\xd5Y\xa6\xb8\xd9CR\x8f\x82\xf3M\xa5|\x97\x1eJ\xe3\x8b\xb2\x07;\x90n\x14\x13\x88ln\xad\xb4\xb4%\xc7sk|\xd4\xae\x07J\xea\xaa\xf6\xb4l/\x7f\xb2\xad\x8dF\xd5\xedf\xd5MB\x91\x98\xf5\x8f5\xce\xaa\xd4)\xec\xa2$YJ}-\'bVT\x10\xed\x806I*&lt;\xed7$\x1b\xf0\x03\x93\xa6}=U\xb5B\xa5\x16]\x7fN\x13!E\xb0\xea\xfeM\x94\xb6\xe7\xd1j\xb8\xd8\xd9\xb7\xad\x81"\xd6\x02\xf8V{d\x9b\xde\xdfR\x9e)"l~\xec\r\x02]\xd1~\x1dq\xa4TS\x01\xcd6u\x98\xee=\xe6R\xd26\x94\x0bY^^\x01\x1d\xbb\x0b\xd8[\x82p\x83\xea\x0f\xe1\xf5X\xd2\xdc\xc2\xda\xa8\xeb\x90)oY\xb6\xd9B\x87\x80\xd1"\xdb\xb6_\x93\xeeG\xf5\xc6H\xe4\x99\xad\xef\x8d\x96w\xd2\xc4\xe1\xdcL\x8ea\xd1\x9c\xc7\x94kd\xbf\x98\x19\x8e\xdbe;T 8\xe3\x8d\x02\x7fE\x87\'\xecG\xa9=\xaf\x87oK\xf2\xd6O\xc9\x14je_,\xd4\xeaU\x89\xd5G\x9e.="?\xe7k\xb2\xbc\xa5\xc5\x90\xa2\xad\xc9\xfc\xc9\n=\xbd\x95\x1b[P\xe7E\xdd\xb7\x8a\xf5KJ\xd8\xa4\xef\\\xf4So\xe1\xdb\xd4\xa4|\x99\xaa\xf4}4oP\xf3$J%fZ#\x1a|\x88\xed\x86\x98x\xdc6\x85!\xf6\xbcF\xd0TB&lt;\xb6 \xa8\x1b\xda\xf8\xb3\xae\x05\xb9\x1d\xb0\xd9\xc35.\x9f\x0f\xca\xe3r\xd3oNI+\x89\xa9\x9bO_\x99\xa2\xc1\xc2\xff\x00\xda\xfa\xc1\x86D\xbc\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\xa2\x97\xc5_\xa9,\xe1\xa0:\x0b5\xcc\x98\xdb\x88~\xaa\xc3\x90\xa5NnieQ[q\x04\x02\x8d\xbem\xca^\xd4\xee\xf2\x90\n\x82T\x14AO\xe7\xff\x00+\xd3s\xfe~\xd7\xe8\xb44f9L\xa9\xea\xc7\xfe\xa4\xf3r\x0b{\x12\x1c!\xc5[\xf4\x9b\x12\x91kv\xfa\x8c@\xe2\x1e\xf6b\x1c&gt;\x11\xa2`\xc2\xc6F\x0b~\xa2\xac?Lz2\xc9I\x91\x16e~\x1b\x8e8\xca\x1bq&gt;!\x03\xfd\xaem\xfb\x1f\xb5\xaf\x89K\xa69&gt;\x89\x95\xe0&amp;\x93F\xa74\xcb!\xc2\x02[H\x06\xdf\xf3\xfdq\x06\xd6\x1c\xc4\x00\x9fY\x926\x84\xe1\xc3A@JCiRm\xca@\xfa\xe3~\xa1\x90\xa8\x19\xa6\x9aX\xaa\xd3\x19\x90\xdb\x89\xf3!\xc4\x02\x0f\xd3\xed\x8cm\x0fc\x96i\x0cyA\t\xb6\xcd\x9d\x1b\xe9\xd5]\xb54\x9a\x1b)C\xcbQ\xda[I\xf0\xc9\xeeG\x1c_\xe9\xef\x883\xf1\x0f\xe9\x139\xf4\xe5\x97#g\r+fC\xd4\xa3Xm\xc7\xd2\x87\x15h\xc5HRT\xae\xe2\xde`\xd2\x81\xb8\x03i\xf7\'\x11rD\xd8\xe6\xb9\xd8\xad\xb2\xe6\xd4\xd3\x10&gt; 4\xf4H\xbd\x19\xd6\xdc\xf2\xdei\xa3\xd65\xa2\xaa\xe2\xa0\x87#)\x0e8\xb0^p\xb4\xf2\x17\xb1!\xb0\x1cp\xee\x01&lt;^\xc0\x83\xce/\x9fKs%O8\xe4\x1a^n\xacR]\xa7\xbfT\x8a%*\x9e\xfa\x82\x9c\x8c\x97\x0e\xe4\xb4\xa2\x92ARRBM\x89\x17\x06\xc4\x8cO\xf0\xabY\x13\xa5dc\xbal}vH|W\x98\xf6oy\xd7Q\xf6)G\x83\x0ei5\x180!\x180!\x180!\x180!A\x1f\x8f\xfc6\xe9=\x0e=\x9b *;/1\x9a"\xad\xc4\xab\xca\xa9\x0b,\xba\x81\xf5QJwX{\x80\x7fN)\xc7\xa4\xa51U\xd57\xab\xd9\x8e:S\xf3\xd5e&lt;\xdb\x8bP\n}J**"\xe4\xf06\xd8\x0f\xf7\xbd\xe2+#\xf7\xe7\xc4)\xec5\xc7+OB\xadC)KfT:mE&lt;7".\xc3\xb7\x80\x08\xe0\x0f\xf9\xff\x00\xf7\x0e\x1d\x13z\x83\x7f.\xa4\xa4%@\x15\x0f\xb5\xbf\xdb\x10\x0evW\'\xc8\xbb\xec\tQIvR\xdeK~\x12\x8d\x95\xf9\xb9\xed\xef\x85].S\x8aF\xc6]\xf3\'\x82\x94\xfe\x93\xed\x8cou\xeeB\xd8\xec\xec\xd0\n\xda}\xa7\xf6\xaa\xeb\xed\xfd1\xc8\xcc\xd9Z\x8b\x9a\xa8\xefQ3\x155\x99Q\xe46\xa6\xdfa\xf6\xf7%i&gt;\x84\x1e\xf8\x87\xa89\x9d\xaa\xcb\x0c\x99H-P[\xac.\x9f\xb26\x80\xe6\xb4\xe6\x9d4\xa0G\x83h\xe5\xe7G\x84\x16\x95\x10m\xb7\x9eF\xe1t\xfb\x0b\xf2,qd\xbd\x01g\x965\x1b\xa4&lt;\x93\x99\xa3\x976\xff\x00\rT`\x97\x9c\xde\xa4\xa5\x97V\xd2A77\xf2\xa0[\x92-lM\xf0\xc7v\xa5\xc3\xa8\xfeBT\xe2\xf2\x1f\x0b\x08\x1c\xfe\xe1&lt;\xf80\xee\x90\xd1\x83\x02\x11\x83\x02\x11\x83\x02\x11\x83\x02\x14\t\xfe\xd1\\\x18\xb5&gt;\x80"\xd3\x9eS\x81\xe7\xf3\xe5=\xb8\xaamD\x14\xa8\xb3$(\xff\x00\xe1\xbcs\x7f\xcd\xeflTOF\xb9\x19\xcdf\xd6\xdae66\xe6ht*h\x95V[gj\x94\xf1!\x01\t\x1e\xca#w\xa0\xb6\xef|Db\x07-\xca\x9e\xc1\x99\xdaH\xd6\xf8\xab4\xa3\xd5\xa0?Ka\x84\xc9K\t\x8c\xd8\x1f\x97\xca\x9b\x1b\x0f\xe6&gt;\xf8[\xe5\xcc\xfd\xa7T\x88\x1e,\xac\xf7KM\xael\xa9\xc8\xdcU\xdc\xf0M\xcd\xac{\x03k}1\r\x1cm{\xae\xe4\xf8\xde\xeb\x00jYe-R\xc9\xf2\x15\xf3\x91kq\xe56\x94\x95(\xb2\xe0R{v\xe3\x1d\xd63\x85\x1e\x9a\xcc)\x0e\xafg\xcc8T\xa1\xdb\xcbn\xf8\xc5#c\xccl\xb7[\x1c\x8eh\xf1J8\xb9\x9a\x9fQ@Dw\x9bWk\xa5*\xba\x87\xed\x8cS#\xb8\xe03ZP$\x0b\xa4\x03\xdf\x11\x15\x90\xbb\xe2\x0b\xccl\x10\xbb^j\x10|M\xf5.^N\xcc\x14\xba;\xd4\xb5JMz\x13\x8c\xc3;O\xf7\x89ZTSq\xefo\xa1\x18\x9c\x7f\t\xc8qa\xf4\x1d\x92\x1d\x88\x87\x12\xdc\x94Ky\tyWRRe;\xb4\x1f\xa8HH?[\xe2S\x86\x1a{rOC\xf7\tc\x8b\xec"\r\xe8G\xd9I\x0c\x18xH(\xc1\x81\x08\xc1\x81\x08\xc1\x81\x08\xc1\x81\n\x06||\xa6\xc2\xact\xe5\x94\xb4\xb9\xc8n*Mk6*L\x19L\xb6V\xa6\\\x8b\x15\xe5\xda\xc3\xfcAe=\x8d\x8d\xb8\xf6\xad\xaf\x87\\\n}&amp;\x05zt\x16\xdbK\x8a\r2\xb4\x84\xed\xdaPUa\xf7\xdan}q\x03\x89I|\xcd\xe9o\xe18\xe0\xd4&amp;8\xe0\x9e\xff\x00\x18w\xd0\xdb\xf8O&amp;\xbdg\xe9Y6\x80\x97\xa2\x7f\x10\xa9n\xd8D*kJq\xc5_\xb9 \x0b\x80\x07{\x02O\x16\x1e\xb8j\xea\x9a\xf1\x9c3\xe5xi\xcc=\t\xaf@\x9e\xa1\xb5\xaa\x9cw\x80J\xec\x96\xb6\xdd\xb2\xbf\x0c\xeeC\x9b\x85\x9d7\r(\x9b\r\xb7\xd3\xa4\x84T\x87\x9b\xda\xc10\xcdT\xeaC\x18\xc8M\xdc\x1b\xe4J_\xf4\xe3T\xd4\xaaV`m\xc9\x8d\xd4\x1b\xa7\xb2\xe2\x9b[2\xac\x84\xb8\xea\x0f)%IJ\xd2mumP\x07\x82.G&amp;R\xf5.\xc6|\xc8ZP\xdeu\xcb\x92\xbciE\xa2\xa6\x19e\x858wv\r\x84\x0f\xccM\xfd,x\xc4]Ps\x05\x81\xe6\x13\x15+\xc96x\xda\xe3\xe5\xaf\xf0\xa1}7\xac\x1a\x9eD\xae\xc7\xcd\xf9\xcbVj\xd4\xd8\xafL\xf9m\xed\xc5yI\xf1\x92\xa4!I\xd8\x94\xb8\x91e8\x90R\xa5\x05\x82yH\x1c\xe2Rh\xb7Y\xeef\'\x85.\x8fXz\xa4\xe4\xa8\xa8\x95\x01JV\xdf\x99l\xa0,\x84\xa1`-\xb5\x94y\xc2\x16\x94\xefH%;\x80Q\x1a\xb5\xd4\xb3S\xd2\xb6bW\x9az\xdaz\xba\xb7\xc1mF\xfa}\x96o\x88\xfe@s&gt;h\x15?;S`\xee\xa8\xd1*h\xa8ERE\xd4\x92\x19r\xe0{\xf9\xac-\xf4\xc4\xcb\xf8e=NWFyA\xb8O\xb4\xa7J$\xc8\x98\xdbI)KN\xbf!\xc9\x05 \x12v\x8b:\x08\x1e\xc4v\xed\x89\x0e\x16s{B\xd2u\xb1\xb7\xcc%\x0e4\x89\xe5\xa2@4\x16\xbf\xd5?\xf80\xf0\xab\xc4`\xc0\x84`\xc0\x84`\xc0\x84`\xc0\x85\x13&gt;-zW79i\x1eT\xd48\xd2\xfc\x162^nj}I\xcfQ\x15m8\xd2\x88\xff\x00\xdc\xa6\xc7\xef\xf4\xc5Yty\x91*\xd9r\xa9\x9be\xb2\xb0\xe56T\xf0)\xb2\x81."G%EH\xec8\x1eS\xec\xa1\xf4\xb6\x17q6\xe5\x99\xc3\xf7\x00~Z+\x1b\x03=\xb6\x11\x03\xc7\xfe\xb78\x1f]G\xddK*V\x9b\xe5:\xc5-\xb4\x18InK\xcd\xdd\xe52\x8d\x9b\x14;\x1d\xc9"\xc7\xf9\xfd-\xce3\'E\xe6Tg*4\xaa\xd4\x94\xa1)I\xf9\x84\xc4i\x05C\xbe\xd2\xad\xa4\x92=\xef{\xfa\xdf\x11\x91\xbb\xb3nPS;!t\x87\xb4oD\x9c\xac\xe4\xc8\x94y\x7f\xc3\xa3&lt;\xfb\xdb$\x04\xb2\xec\xa9*[\x8a7\xe5&gt;bl&gt;\xbc\xdf\x8f@1(]\xa0E\xce\x9aT\xc4\x1a\x94r\xad\xbb\x01J\x8fo(\xdaG\xef\xed\x8dz\xb8\xcc\x8cs\x94\x83cd10\xff\x00\xc8_\xd5G\xf9\xbd\x18fzl\xb53\x95\xdd\xa3T\xa9\x0b\x90\xa7\x13K\xaeB*\xf9u)W^\xd5\'\x83s\xee\x93k\x0e\xd6\xc3\xa7\x96\xfao\xa8\xd3\xa8q\xa5\xe6\xec\xabEe\xd8\xc5&amp;\x0b\xf4\x18\xa5\x89-)"\xc9\xda\xf5\xc2\xbf/\x16\x04\x028\xf4\x18\xd0\xab|\xd54\xd6\xbe\x9fo%\xf8\x1dIK=\xdd`I\xb5\xfa\xf4\xbf5\xa3\xd4dH\xac\xe9#\xd4\xf7\x16\xb5x\xae\xf8d\xc9R\xd6\xa0\xa2\nAV\xf5\x13\xc1#\xb9\xe3\xbe$\xc7\xc3\xf7 \xabN\xba^\xa0\xd1\x1c\x80\xb8\xaay\xd92\x8bN\x8f0\x0e\xbe\xb5\x82}O\x04r}1\xbb\xc2\xcdq\xac\'\xa3\x7f\xa4\xb1\xc6r1\xb8K\x9b\xcd\xcfg\xc8\x07}\x13\xdb\x83\x0f\xea\xaaF\x0c\x08F\x0c\x08F\x0c\x08F\x0c\x08MgZy~\x0eg\xe9g:\xd2*,\xa5m\x1a*\xddZU{\x1f\x0c\x87=9\xfd8\xaa\xcc\x81\x95)\xfat\xd1\xca4\xa7Ti\xacIqt\xf4\xa9\xe2\xe6\xd6\x16\xe1XI\xbfo2\x97\xc7\xb1\xf6\x1cA\xe2\x8c\xf7\x81\xde\x16\xfa\xa7\xbe\x18\x91\xdf\x96\xc9\x1f,\xe0\xfd\x13\xc1\xa5\xf9\xbe\x9fNu\xa8u\xf7\xbcG\x1aO\x99\xc4\x80\x9d\xdf\xb0\xfd\xaf\x8e\xa6f\xd7\x95W\xb3\x03\xb9\x1bI\xe8\xed\xc8\x99\x1c\x03S\xa8-$\xb3OI\x1c\x15\xab\xf2\x95\x11\xc8E\xca\x8f{Z\xe7\x11n\xcaZ,5:\'ZG9\xba\x93\xdd\x1a\xff\x00\xd2bu\x07_\xa0e|\xe3\x1a\x0enb\xac\xf5I\xca\x83\x8bjDZ&lt;\x97\x99(I\xb8*q\x08-\xb6l?Q\x1f\xe9\x87\xde\x0f\xc4\x03B2\xaeM[\xb23\x0c\x8f\x97LvV\xa4\xc7\x82\xec\x87E\xc7o\t\xa4)\xc2B\xaf{\x02l.E\xaeq\x8e\xa4\xf6p\x90G\x92\x95\x89\xb1\xd4\xb4E}7&gt;\x96\xb7\xff\x00j\xbb\x19\xf3\xa9\x8dD\xd3\tP\xb3\xe53\'9Z\xc9\xb58\xcdHB\x93\x19BLd\x94\xff\x00x\x11m\xcaA\x1ekZ\xe3\xbd\xad\x873!\xf5-\xa7:\xc9\x97\x18\x95@\xaf2\xe3/\'{jm\xc0\xab\x1f^\xd8\x8a\xcc;\x0b\x1e|\xd6\x1a\xac:\'\xc8\x1f\t\xbb\x9b\xb8\xe5q\xccx\x15\xa7\xa9\xf9\r\x8dJ\x8f\x1e\x8eR|\x06\xe6\xb7)\xdd\xb7!\xc6\xdb\xe5H\xef\xc9Rn\x05\xf8\xbd\xb11r|E@\xca\xd4\xf8\x85\x01*j\x13HRG\xa1\x08\x1cb[\x85A\xcf!\xf2H|n\xe6\x88 g=o\xf2\x0b\xa9\x83\x0ej\xbcF\x0c\x08F\x0c\x08F\x0c\x08F\x03\xdb\x02\x16\x95n\x8fK\xccTiY~\xb7\r\x12a\xcd\x8e\xb6%0\xe0\xba\\mi)RO\xd0\x82F+\x9f\xad\x8e\x972\xf7Ku\x9a\x1dG*\xe6\t\x93\xa0\xd7\x9c\x98\x94\xb1)\xb4\x8f\x94K~\x16\xc4\xee\x1c\xb9\xfd\xe1\xb96\xec\x9e\xdc\x93\x1d\x89D\xd7S\x97\xf3\x1f\xd8L\x1c=\\\xf8j?\x0f\xfa^~D\x04\xd7d\x98.\xd5gH\xf9e8\xa9OS\xdcTD\xed\xb5\x9c\x08;R-\xf5\xc2\x1bP\xb5\xb6\x17L\xb4z,\x0c\xe1M\x93M\xcb\xd5w#D\xa2\xd4\xa1CvS\x95\x1a\x84\x81\xb8\xefKHQ\xf1\\Q\xbf\x9b\xf3\x1b\x81\xf9p\xbd\x1el\xc2\xca\xc6\x136(\xae\xe3`7\xf2YR\xe6\x9ef\xf0\xe2j\xa6\xbf\x05\xe5\x84\x85\x19T\xf2\xc17QH\x16qC\x92AH\x1c^\xc7\xbd\xb0\xb6\xd2\x9c\x97\xd2\xfe\x9a\xa15z^g\xf9i\x88#{\x85\xb4\xa9\xc4(\x9e\xc4o\xb0\x17\xf4\x17\xc7\x9a\xb6\xb6H\xb3\x07\x03\xea7S\x98tf@]\x19\x06\xfc\xefu\xd6\xea\x0f\xacn\x96\xe0e\xa6\xf2\x85wZ *\xad1\x95\x1aM)\xbf\x17\xe7\xa4\xa96\x002\xdaRV\xb3~&lt;\xa0\xf3\xfc\xb0\x84\xe9\xba\x15j\xa9\x9d`g\xd4QgR\x1b\xa9*{5\x88\xb2\x98,\xa9\xf7\x18SiL\x85\xa3\xf4\xbb\xe7)R\xac\n\xb7#w)\xc4)l\x9f\x87$\xecv=V\xc3\xe6kg\xca9onGM\r\x94\xdb\xd1\xea5gP\xa6E\xa5R[}\xc5\xf8\x7f\x8d!\x17\x08i&amp;\xdeu\x9f\xf0\xf76\xf5\xed\xeb\x89v\xca66\x94\x03\xf9E\x8e\x18\xf8Z\x19\x19J\xf9\x0e\xce"\xde\x9b\xaa\xb7\x8ejc\x92\xb5\x917v\x82O\xad\xad\xf6\xbf\xaa\xfb\xc1\x86\xb4\x8e\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\xbeT@\x168\x8b\x7f\x16,\x8b.\xbf\xd3\xf4\x0c\xed\x05\xb2U\x97k\xad*R\x83{\xad\x19\xf0YU\xfd\x86\xf55s\xed\xfc\xf1\xadT\xdc\xd4\xce\x1e\x0bw\r\x93\xb2\xaf\x8d\xde?}\x14\x03\xca\x19\xfd\xea5V5C\xf1\x12\xa8kI\xf0\xdbE\xee\x05\xafq~\xfc\xfd}{\xe1\xdb\xacE\xc8Z\x99\x95\xa5e\x8a\xb4\x18s\xa1\xcfE\xd9\x8e\xf3)R\x14\x8b\xee\xdaRGt\xab\xb7b\r\xadc\x85f\xfc`+I\x8e\x0eh\xd1\'r\x95w6\xe9EM0!j\xa4\x8a[,8\xda[b\xa9O\x13#:\x848\\\xbf\x8bo\x15\'\x929X\xb0\xb5\x8d\xc08vr&amp;\xb3e7\xe4\xa8Vuw/\x158\xfa_\xdbM\xa0\xab\xc5*J\xb8\x00\xa9J\xe3jR\x9b\x90O\xad\xc7\x03\x1e*cm\x81\x12Xk\xa5\xaf\xbe\xa5I\xc3\x81\xe1u\x0c2\xc4\xd2\x1cm\xa0p\x03\xeb\xa8\xf2\xd5t"t\xf9\xa2\xf5\x8c\xf45\xa9\xdc\xb6\x8a\xa5m\x98\xaab\x05n\xa8\xd2T\xe4VO%\x0c"\xc1,\xa6\xfd\xca@R\xac.x\x16FU\xeaYz\x8f&gt;N\\\xa6\xc2\xfc({\xd0\xb7\x83w)*^\xf5\x81nn\xa3\xe66\xef\x7f\xa6!$xla\x8d:\r\x07\x92\xdd,lo\x0c\x00\x0bon\xb7\xb9\xd7s\xaf5,z\x01\xa4I^E\xa9f\xf9\x03\xc9.J#GU\xb8)i&lt;\x91~H\xba\xad\x7f]\xb8\x90=\xae\xac=`\x91\x98\xf0\xb8\xc1\xe9\x7f\x99\xba\xa6\xf8\x92a&gt;53\x87[|\x80\x1f\xc2\xf7\x06%\x94"0`B0`B0`B0`B\xf0\xa6\xea\xb9?\xb68Z\x8d\x92hz\x93\x90\xeb\x19\x0f0\xc2L\x885zk\xd1$\xb4\xbf\xd4\x95\xa0\xa7\xf6"\xf7\x07\xb8 \x11\x8f.\x19\x9bb\xbd0\xe5xp\xe4\xa8\xe9y\xbdT9\xcfQ\xaa\x92\x9c\x8dQ\x84\xeb\x88p(\x8b,\x03\xf9\xbb\xfd-\xe9l8:;\xad9}o\xbd\x97\x1au\xb76\x848\xca\x96\xaeOop-nn8\xb9\xee\x076R\x11\x1e\xd3UfGP\x03\x1a\x9f\x86(Y;&gt;\xd1\x9bZP\xdc\xb4&lt;&lt;\xcaR\xc7\x95V\xfb\xfb\xe3\xb3\x92\xf4\'Ei\xd5\x00\xfa\xa1\xa5\xb9V\xba\x93\xe3q\x7f{\x0e\xdc\xdb\xb5\xb1\xe2\xa1\x96m\x8a\x9f\xa4s\x83Ajp35W+\xe4\xdc\xb4\xe3-\xccg\xc3e\x95\x1d\xbe\'&lt;\x0f(\xfd\xce#Fh\xce\xb95\xaa\xf3\x8d\xd4\xf3DJe=\x0f\x07j\x15\x89\x8f\x16\xa2\xc4AU\x94\xeb\xca\x1d\x9b@\xf3(\x9b\xd8\'\xedu\xd1\x1b\xa4\x9d\xb1\xb3r@\x1e\xb6[STvq\xbaG\xf2\x04\x9fEf\xda\x13\x03O)ZIC\x83\xa5Y\x8a\rb\x84\x88)\xf9\x1a\xad&gt;R\x1ej_\xaa\x9d\x0bA)QR\xaeM\x8fsl,I\x1e\x9d\xf1g\xc5\x17\xe1\xe3\x11\xf4\x16\xf9*2i]&lt;\xce\x91\xdb\xb8\x93\xf3\xd5{\x83\x19V4`\xc0\x84`\xc0\x84`\xc0\x84`=\xb0!|X\xdb\x9b\xe2\x90?\xb4\xa7\xf1{\xeb\x03B\xb3\xec\xad\x01\xe9\x0fR\xde\xca\xb4\n+(\x87\x9d+tT\x84\xd4\x155\xf6\x92\xe2\x12\x87\xff\x003M\xa4-(;\nU\xbc\xd8\x9e\xc0oP\xd2\xba\xa0\xc8\xe0/\x91\xb9\xbc4 \x7f+R\xaav\xc4\xe8\xd8\xe3l\xce\xb6\x9f?\xad\xad\xea\x900\xd9N\xaai\xb5\x0fS`\xcaQ\x95:\x83\x16\xa0\xa5\xba\xab\x87\x92\xf3)qI$\xfb\x95r~\xa7\xeb\x86\xf79\xe6J~^\x94\xdb\x92g9I\x95\x1dVozv\xf8k\x06\xde\xa3j\x81\x1fk\x8f\\$\xb3\xe3\xb7Eh9\xbe\xed\xa7\xad\x8a\xfa\xa5u\xad\xab\xf9\x1e\x08\x99\x01\xe6*\xcc\xb6\x9bn\x8a\xe2JTM\xb9\xdalo\xda\xf6\xb8\xe4s\x855/\xe2?\xab5IM\xc8\xa7e\x85\xc6\x90\xe3\xdb_S\x04\x84\xa5\x1f\xe2\x00\x9eTo\xddF\xc2\xdfk\xf8\x99\xac\xd4\x92\xb7\xe9\xeb\xaa\x1a\x03r\xde\xc9}\x96\xfa\x99\xcez\x98\xd7\xcb\xd7\xeb\xa8u\'\x9f\xe1\xd1\x9d\xf1\x16\xb5\xde\xc1KX\'r\x8d\x85\x92.\x91\xf5\xb0\xb7s\xab|\xa4\xac\x93\xf0\xfb\xd5,\xdb^mI\x98\xf6W\xf0\x1bh\xab\xfb\x94\xbc\xfbH\xdb\x7fR\xad\xfc\x9b\xfd0\xbf\x0fw\x11\x8c\x0en\x1fp\xa5f.\x93\x0e\x95\xc7\xf6\x93\xf4O\xbf\xf6j\xb5\xad\xea/G\x99_Is\\\xc5\xa5\x9a\xd3\x93%Q\x97!\xc2v\xbd\xe3\xaf\xf0\xee\x7f\xc6\x81q\xf5E\x87\'\x16\x90\x94\x8b\xdf\x16\xb5dF)\x1a\x7fsA\xfak\xf5T\x8b\x1e\x1f\x9a\xdc\x89\x1fU\xee\x0cj,\xa8\xc1\x81\x08\xc1\x81\x08\xc1\x81\x08\xc1\x81\t1\xac\x1a\x93B\xd1\xdd+\xccZ\xad\x99W\xb6\x0e^\xa3H\x9f#\x9f\xce\x96\x9b+\xda&gt;\xaa ${\x921\xf9\x92\xea\xa5\xfa\x97R\xeeg\n\x86v\x91\xe2\xd43d\x89R\xa68\xa1}\xb2\x1dp\xb9\xbc}\x96A\x1f`=0\xf9\xc1\xb4-\xa9\xa7\xa9s\xb9\x8c\xbf0o\xfc$\xee&amp;\xab0T\xd3\xdb\x91\xbf\xc8\x8b\x7f*GtZ\xa5J\xe9\xaf!\xc4\x95r\xfc&lt;\xab\x0e4\xa6\xd2F\xe4\xad\xa6\x12\xdb\x88\xf6\x16)?\xbe\x169\xafL\xb2\xe5]\xbf\x071P\xa2\xce\x8e\x9b+z\x92\x14\xa29\xb8\xe7\x9e-\xcf?\xd3\x14\xcc\x8dtU\x0e\x07B\tW\xfcMl\xb4lp\xd4\x16\x8f\xb0Z\x99\x7f\xa2\x8e\x9d\xf3\xe3\xa8\xa7\xb7\x92\x18\xa7\xca\xdd\xb9Jm!\xb5\x0ex\xe4\x00\xab\x8f\xa1\xfbw\x18UP~\x19\xdd8P\xde\xfe#Z\x80\xe5Cc\xc4",\xb9\xcbx\x14\xfdw\xdcw\xb7\xa65+36,\xc0\xac\xd4\x11^l\xae\x1a\'KOt\x13L\xf2!R\xf2nN\x83O\xdb\xe5Ii\x906$\xf3\xb5&gt;\x82\xe3\xbd\xad\xcf\xbd\x80\xc2w\xe29\x94\xd1Y\xf8zj\x95%AQ&lt;L\xaa\xfb\xd1\xc9H6[+K\xc3\xd7\x92|$\x93\xedp8\xc2\xd8\x95\xcc\xab\x8d\xfd\x1c\x0f\xc8\x84\xdb\xf8V\x1a\x19X4\xbbH\xf9\x84\xde\xf4\x00+ZM\xd2\x86\x9e\xb0\xcc\xc53*\x9fE\x8d)\xb9M\xaa\xce4\xf1\xb2\xef\xc7b\x15\xc8\xfa\xe2\xe4zy\xd5\xb8Z\xdf\xa4T}C\x8a\x12\x87\xa5G\xd9=\x94\x8bxR\x11\xe5q6\xf4\x1b\x81#\xe8F/\xdc^\x9e\xd8|\x12s\x00\x03\xea\x07\xf4\xb9\xa6\x96KWJ\xc1\xb1$\xfc\x8f\xfd\xa5\xbe\x0c-\xa9T`\xc0\x84`\xc0\x84`\xc0\x84c\x14\x99,Der\xa5&lt;\x86\xdbm%N8\xe2\x82R\x90;\x92Oa\x83t*\xd3\xf8\xc8\xfcK\xf4+4h\xc5K\xa5-\t\xcfM\xe6J\xf5R\\s\x98&amp;Q\xdc\xdf\x0e\x1cV\xdd\xde[\xf1\xc7\x95\xc5\xa9m\xa4mA %*\xdcA\xb05)"s\xce\xbcP\x94yRn}\x8f\xd3\x17?\x07\xe1\xd3Pa~\xf4Y\xce9\xad\xcc\x02\x00\x17\xf4\xfb\xaa\xab\x89k\xe2\xac\xc4=\xd1\xb8h\xb5\xf9\x12\x0e\xb6\xf9\xd9;\xdd\x1d\xe7\x98\x99w9\xbd\xa55\x07\xb6\xc7\xaa6\xe5F\x86\\\xb6\xd5\x82@\x92\xc0\xbf\xeaJ\x94\x1c\xfa\x87\x15\xe8\x93\x89\x88\xd5\x1e=V\x97\xf3t\xc5%*\x1bC\x8d{\x8en\x08\xe6\xd7\xedc\xed\x8a+\x8a\xe8\xff\x00.\xe2J\x88\xf6\x05\xd9\x87\x91\xb1\xfeWEp^!\xf9\x8f\r\xd3\xbc\xeaCCO\x98\xd1z\xf6U\x91R\xa7&amp;]1\x99PfG\x1f\x86\xfc\x15\x84\x12\xae\x0f)7\x16\xec;zqnp\xac\xd3\x13]\xcc\r\xa6&gt;m\x8e\xe3\xae4\xe5\xd2\x97]#r\xb8\xe7\x8b^\xc3\xd7\xedq\xdf\n\xb8\x85\xbb\x1d\x13\x86\x1e\xdc\xb2\xea\x9ct\xd3\xe0\xb2\xda\xa5\x13\xc2S\xe6m\xb4\x8b\x81s\xeb\xfa~\xf8\x8c?\x11\xddQ\xff\x00\xaet\xe5:\x0fFaI9\xa6cT\x99\x05*6C.\xab\xf1\x8d\xfdU\xe1\x07?\x7fS\x88&lt;2\x99\xd5\xf8\xad&lt;\x03\x9b\x80\xf9\x90\xa7\xb1J\x96\xd0\xe13\xcd\xd1\x87\xec\xbbYz\x83\x1f)S#\xe5h\xb1\x1cn&lt;x\xe8i\x85$\x05%\x1bSk\x0b\x01\xc7\xf5\xff\x00L9\x1a1\xd4\xa6\xach;\x0f9\x91s%\x98T\xa4\xbb2\x976?\x89\x1d\xdb\x80\t#\xbaO\x00]*\x06\xd8\xea:\x9a8ja\xec^4\xfb.K\x8ey"\x93\xb4\x07U(\xf4\x93\xe2k\xa5\xb9\xa7\xc3\xa6\xea\x9d\x1d\xfc\xbb0\x90\x95Lf\xf2"(\xfb\xdc\r\xe8\xfb\x10\xa0?\xc5\x87\xff\x00$\xeaVB\xd4xK\xa8d&lt;\xdd\x02\xac\xd3J\x01\xd5C\x90\x16[\'\xb0P\x1c\xa7\xf7\x18\xaf\xf1L&lt;\xe1\x93\x06=\xc2\xce\xf8u\x00\x9bo\xa6\xf7\x1c\xec\x9ah\xa5\x92\xba\x17H\xc6\x1b6\xd9\x88\x04\x81}\x05\xce\xc2\xe7k\xee\x94\x181\xa0\xb6\x11\x83\x02\x11\x8c\x12\xa5\xc7\x83\x1d\xc9r\x9fKm4\x82\xb7\x1cq@%\t\x02\xe4\x92{\x001\xf9p5+\xf44\xb8\xd8(\x93\xd4\x7f\xc5\xf7C4\x82[\xd9\x7fJ\xa8og\xda\x9cr\xa4\xbc\xe4\x19\xa9\x8d\x01\n\x1e\x82B\x92\xaf\x13\x9fT%I\xff\x006*\xf7\xad\xcf\x89?V\x1dV\xe6\'r\xd6\xa1U\xa4e\x9c\xb6\xa5\xda6O\xa2\xbc\xe3Q]M\xfc\xa5\xd5\xa4\xdeQ&gt;\xa5Gh\xb7\tI\xe3\x12\xfe\xce1\xae\x15\xc7\xb1\xf7R\to;.Z\xd2\x00k\xad\xb9i\xbfx\x8d\xec@6\xd4\\\x02V\xc7\xb4\x8e\x07\xe3~\x16\xe1\x98\xb1I\xa0\x02\x9d\xf6\xccZI{/\xb0{l2\x83\xd4\x12/\xa1\xb161\xb2\x03\x7f5X\x96\xfb\xd2\x94\x90\xa6[K\xaao\xf3\x9b\x15\xf9G\xb0\x1f\xd3\xb7l\x12\x0c\t\tT6Q\xe1\xa4 \xed\xdcy?rq\xd1\x12B\xd8\xdeZ\x179C3\xa4\x8c8\xf3[\x99v\x9bP\xae0\x88\xf9jzb\xd7i3\x1b\x9d\x97\xe6r&lt;9\t=\x8f\xf9\x14\n\x90\xa1\xea\x95+\x8cO\xde\x98s\xa5?T\xf2\xbcZ\xb3\x90\x97\x1a[\x8d\x86\xaa\xd4\xf7\x13\xf8\x91$\x04\xd8\xa4\x8fk\x8f\xb7\xfab\x87\xf6\xa9\x87\x88\xab\xe0\xab\x03\xe2i\x07\xcc\x1e~\x9b.\x80\xf6K\\\xe9p\xe9\xe9\xaf\xf0\x10\xe1\xe4G\xf65N|\xac\xb9"\x90\xe8v3\xaa\tK\xb7\xdba\xfe\xb7\xfe\x84\x7fS|oQj\x11\xfee&amp;E-{\xd4\xaf\xc4N\xdd\xd7\xe7\xd4\x0b[\xef\x7f\\S\xb5M.\x8c\x85tR\xbd\xbd\xa0%w\xb3*+3i\xa9\x83L\x1e\x1e\xe4\xf0\xde\xdf\xc8\x9bw\xb7\xdb\x10\xd7Y\xab\x99j\x8b\xd4q\x9f\x9b\xeaM\xc5\xa1\xe4\x9ajgU\xaa\x92Q\xf8,\x15\xacou\xc2/\xb1(m&amp;\xe7\xb2B\xc9\'\x9cop\x1d+d\xe2\x98K\xf6m\xcf\x95\x85\xfe\x85i\xf1\xe5k\xa3\xe1i\x839\x80&lt;\xee@\xfa\x82S\xc5\x95\xf3-\x0f;\xd0[\xcc\x19b\xbf\x16\xa5\x06B|X\x13\xa0\xc8C\xcc\xba\xd9&lt;\x14-\x04\x85\x8b[\x90q\xd4\x91\x08:\x83\x1aB\xc6\xd7\x13\xb5\xcf-\xd4\x07\xb8\xe3\xb8\xe0\xfe\xdf\\tKAq\xb8\\\xda\xd3\xb0II\x01\xd6%\xae\x9b-\xa4\xa5L8E\x91\xeb\xcf\x06\xfe\xa0\xf7\x07\xdb\n\\\x85\xaa\xd9\xd7L+\xcdfL\x95\x98_\xa6\xcbg\x80\xb6W\xc2\xd3\xfe\x15$\xf0\xa4\xf1\xd8\x8bc\x87x\xcb\x8bq|c\x8a\xe4\xac\x90\x98\xccN-co\xf0\x86\x9b[\xcc\x9b\x93\xd4\xdcm`\xbe\x84\xf0W\x02`x?\x06G\x87\xb4\t\x1b3\x03\xa4u\xbe2\xe05\xea\x00\xd3/@\x01\xdfyS\xa4\xdf\x14*l\xa4\xc7\xa5j\xf6Nq\xb78K\xb5JI\xbaO\xf9\x8b*7\x1f]\xaa?A\xe9\x89M\x93\xb3\xaeT\xd4\n\x139\x9f&amp;W\xd8\xa8\xc1|~\x1c\x88\xcb\n\x17\xf5I\xf5J\x87\xaaM\x88\xf5\x18\xb4\xb8K\x8ba\xe2\x18\x8cR\x0c\xb34\\\x8eN\x1f\xb9\xbe\xbb\x8eW\x0b\x9d\xfd\xa0{=\xaa\xe0\xea\x91,g=;\xc9\rw6\x9d\xc3]\xca\xf6\xd8\xf3\xb1\xd0.\xce\x0c:\xaa\xe14\xddJ\xf5\x89\xa2}-\xd0\xcc\xbdC\xcc\x01\xea\x9b\xcd\x15@\xcb\xf4\xfb92O\xb1\xdb\x7f"o\xfa\xd4@\xf6\xb9\xe3\x15\xa1\xd5\x8f\xc47[\xba\xa1rF\\vJ\xb2\xf6VR\x8f\x87@\xa7&lt;\xaf\xc6H\xecd9\xc1x\xff\x00\x97\x84\x028M\xc5\xf1V\xf1\xdf\x14\x88\x1ap\xdaWw\x8f\xc6G!\xfbG\x89\xe7\xd0i\xcc\xdb\xa2\xbd\x8c{6v#3q\xdcA\x9e\xed\xa6\xf1\xb4\xfe\xa2?Q\xf0\x07\xe1\xeau\xd8\x0b\xc7\xd2\xd1Q\xb2F89\xe9\x9c\xa4h\xc5\xbc\xd8\xf8K{\x89l5\x7f\x15K\xb5\xbc\x96\xf3_\xed\xe9\xdf\x08\x1c(\xdcnn!\xa5n\x11\x7f\xc4\xe7\x19-\xc8\x83pM\xf4\xb0\xdd\xd7\xd2\xd7\xba\xe8.7\xff\x00\xc6\xe9\xb8J\xb1\xf8\xf1\x1f\x83\xc8D\x97\xbe\xad"\xc4\x0bk\x98\xde\xcd\xb6\xb7"\xda\xa6j\x88\xed\x0eNe\x99K\xa13+\xc0K!m"kvP\tY\xbd\xc8\xe0\xf2\xbf\xbf\xbe3\xd4\xa9\xc5\'\xc4KIM\xff\x00RN&gt;\x97PG_\xf9|b\xbc\xb4\xcf\x95\xb9\xcb/\x975\x85\xed}m}\xaf\xc9|u\xc4d\xc2\x9d\x88\xcc\xec0&lt;Sg=\x98\x92\xd9\x83o\xa6l\xba^\xd6\xd96\x9a\xbf\xd4\x14\x0e\x99\xe9\x07;LZ%&gt;\xbd\xcdA\xa5x\xdbU)\xc2?\x98@\x06\xeaU\xb8\x16\x1c\x920\xfb\xf4]\xf19\xd0\xda\x86k\xa6\xe6\x0c\xe5!YjuZ;/\xc8m\xb9\x08v\x14\x85\x00\x02\xbf\x10\x1f\xc1y\x06\xfb\x83\x96\x04\x10\xab\x80\xb1z\xcb\x8e\xe2\x87\x18\x8c\xe1\xed\xff\x00dv{|N\xd9|\t\x16#\xc4\x8b\xe8\xac\xefgU\x92`\xb5-\xac\x93\xfdR\xdd\x8e\xdf\xba4\xefy\x03\xbf;^\xca\xd14\xc3Rt\x7fZ),K\xd3\xadG\xa3\xd5\xa4)\x9f\x11q"\xceio!6\x06\xe5\xb0wp\x08\xe6\xd6\xe4\x1b\xf20\xb6\xca\x9am\x16C\xbe2ZS{\x1b\xfc\xad\xa4\x13\xda\xd6\xfb\xdf\xd7\xeb\x8a\x06h%\x88\x86\xca\xc70\x90\r\x9c\xd2\xd3c\xe0@*\xff\x00l\xb1=\xc4\xc4\xf6\xbc\x02E\xda\xe0\xe6\xdctp$\x15\x8fZkY;D4\xf6Fv\xceU\xf8\xb0b\xb6\xca\xbc\xef&lt;7:\xabp\x84\x007(\xfd\xbb}\xbbQ\x1f\xc4\x8f\\3\xafP9\x81\xed;\xd0yJ\xdf\x9a$)\xda\xe2"\xab\x99,\xf9\x0b(Z\xc7\x1b\x0e\xd2\xab\x03\xc8\x00\xf6U\x8b\x8f\x03\xe05\x93TIT\xc6\xe8ZZ\xc3\xd4\x92\x01\xf4\xb1"\xfd|vP\xe3\x8e \xa3\x83\x0ee3\x9d\xde\xcc\xd78x\x00H\xf27\x00\xdb\xa7\x81M\xafO\xfaO\xd5\xefFN\xa79i\xfe\xacT\xa9\x8eH\x01R)4\xf7\xc2\xe2\xbcm\xd9\xc6\x1c\xdc\xdb\x87\xeaSq\xe8q6\xbap\xeb\x13\xab=R\xcc\xf0\xe8\x1a\x91L\xa6\xb2\xca\x9b\xda\xb9P\xe9\x89m\xd2\xb2.\x07r\x91\xc7&lt;\'\x16\x85&amp;\x1b\x8aa\x84DFf\xf5\xe89\xd9T\xb2bXm}\xde\x0eRyu&gt;*I\xaf\xf8\x9b\xa1\xc9R\x9dR\xe5\xadAN&lt;[\x07u\x80\x00\x10,-`;[\xb5\xfd\xef\x8d\x15\x89,\x0f\xfb\xfa{\xdc(!J\x8c\x92\xe8\xfe@\x05\x7fO\xe7\x8a;\xdao\xb2*\xacR\xa5\xd8\xae\x06\xc0dv\xaf\x88Xf&lt;\xdc\xdd\x86c\xccis\xa8\xb9&amp;\xfd1\xec\x93\xdb]&amp;\x13F\xcc\x1b\x88$!\x8d\xd29M\xdd\x94rk\xeds\x94r:\xd8hl\x02\xde\x8d1\x97\x8e\xf8o\xa1\xcd\x9c,\xa0\xde\xdfq\xe9\xfb\xe1{\xa4\x1d@g\xed\x14\xaf&amp;\xb1\x92\xb3\x03\x91\xca\x94&lt;x\xc4\xeei\xf4\xfb8\x8e\xca\xfb\xf7\x1e\x84c\x9bi\xaa\xab\xb0LDH\xdb\xb2X\xce\xc4X\x824 \x83\xf2 \xf9.\xa1\xc4\xf0\xdc7\x89\xb0\x97@\xfbI\x14\x8d\xdc\x10A\x07PA\x1e\x84\x11\xce\xc4)\xe5\xd3gW\xb9#^\xa8\x8bfj\xda\xa5V\xa1\xb4\x176\x0b\xaf\x8d\xaaM\xc0\xf1\x1b\'\xban@ \xf2\x92E\xfb\x82Lt\x86\x13\xc4\x14X\x9e\x1d\x1dNv\xb4\xb8j\x0b\xadc\xb1\xfa\xed\xe0\xb8\x9f\x88x_\x11\xc0q\x89\xa8KK\xb2\x1d\x08\x1b\x83\xa8?-\xfcU7f\\\xe3\x98smbFh\xce5\xa95\x1a\x84\xd7\x0b\xb2\xe6\xcdx\xb8\xe3\x8a&gt;\xaaR\x8d\xcf\xfbcE\xc9\xf0\x13\x19R\x9f\x94\x86\xdbG*S\x8a\x00\x0f\xe7\x8ep\r\xaa\xaf\xaa\rh/{\xdd`\x05\xcb\x9c\xe2v\x03rI&gt;d\xaf\xa2\x11\xb6\x83\x07\xc3\xee\xe2\xd8\xe2\x89\xb7$\xd9\xadk\x1a5$\xe8\x00\x00o\xa0\x00$Vi\xd5\xcaC!Q\xb2\xba~vBO\x99j\xf2\xa1\x1f^yW\xec-\xf5\xf4\xc2\x12Nlb\xb30\xd4\'\xc9}O(\x10\xb4H\xb7\xf2I\x16\xb0\x1flw\x1f\xb1/e/\xe1\x1a\x7f\xcd\xb1V\x01W \xb3[\xa1\xec\xdaw\x17\x1af&lt;\xed\xb0\xd0\x1dJ\xf9\xad\xfeH{q\x8b\x8f\xab\x06\x07\x82&lt;\x9a\x08\x9dw?Q\xdb&lt;llu\xc8\xddr\x83k\x9b\xb8\x8d\x1aW\x12\xb3\x9b\xa8\xb9j\xbb\xfcZ&amp;\\\xa8Np\xd3\xddk\xc1\xa5\xb2\x16\xe2\x95\xbd\x04\'\xce\xa4\xa4~S\xc9 \xdf\t\xea\xfdg^3\x9cW\x13\x94r\x85/-\xa5I\xfc9Y\x82O\xcdH\x1c\xf7\x0c1f\xd2G\xf9\x9dP\xff\x00)\xc5\xe9R+d\x7fgN\xd1\xaf\xea?\x0bv\xe5\xbb\x8fA\xa0\xeaB\xe5\xfaY)#\x8b4\xce&amp;\xc7\xe1\x1b\x9fS\xa3G\x8e\xa7\xc0\xa6;1\xf4\x7f\x9b\xeb9\xd3\xfe\xaa\xd5\xdc\xc3R\xcc\xef\xf0\n\xddd%\xbd\xb7\xfc\xa9BxB/\xfaR\x00\xf5\xb7\xbf^OD\xb4wR\xeec\xc8\x94vS\xbd\xb0_\xa7\xa4\xed \xff\x00\x8d\xb3\x7f*\x87\xb7c\xe8A\xe4\xad\xb3\x83\xa9\xda]$\x87\xb4\x94\x9b\x97;ry\x8d6\xfe4S\xc7\x8c*\x9c\x1b\x1cc\xb3\x8c\x0b\x06\x8d@\xf1\xb9\xd4\x9b\x8dN\xe7^\xabWH\xb2\xa6\xa7t\xf5\xa8Pu\'L\xeb\x92)y\x92\x94\xff\x00\xfd\xadA\x9b\x87\x12\xab\xf1\xdf\x91p\nT\x95\\\x1b\xed) \x91\x8b\x9b\xe8\'\xe2\x83\x03]tbUkQ(\xd1a\xe7\x8a\x1d\xa1\xd6\xa9\xb0\x97\xb5\xb9\x8a\xb5\xdb\x92\xd2{!\x0b\xe7u\xf8B\x82\xad\xc6\xd1\x84n6\xe0\x99\xeb)bt\r\xef\xb5\xc0_\xfe$\x80o\xe0/\x7f\x01~\xaa\xc1\xe0&gt;8\x86\x96\xb2X\xa7wq\xed&amp;\xdd\x1c\xd1qo\x13kx\x9b&amp;\x0f\xacN\xa8#k.dV\\\x85\x9f\x1b\xcc\x19\x89n\x1f\x96\xa5QW\xe3G\xa7\xa4+\xca\x92\xa1t!)6&lt;\x92\xa5[\xcd\xdf\x08m\x1d\xe9"\x8b\x94i\x8a\xa8\xc9eS\xabs\xf7H\x9d9\xe5\x17\x16\xb7\x0f{\xa8\xf7\xeen{\x9c5P\xd3\xd2\xd0\xd2\xc5\r8\xd21\x94y\xf3&gt;\'\xa9\xeaT\x0e#5N%W$\xd3\x9b\x97\x9b\x9f\xeb\xcb\x90\xf0\xb2YS\xba8\x81\x9ag\xff\x00\x13\xcd\xd5\x17\x92\xdaWf\xe3\xb6\xae;w\xc2\xd7$\xf4\xf9\x96t\xfe\xaa\xdd^\x93-\xc2\xf3g\xf59\xdb\xfeq\x8d\xd7L\xebYiGK\x13\\\x1d\xd3T\xe2\xc6\x81\xe2\xab\xe6\x1co\xdc~"m\xef\x8dGc\xa09f\xd3\xe6O\x07h\xdd\x8dF\x8e\x8aC2\xf1\xdc\xb7O\xad\xa1.\xcf\x0e%\xd0,\x89L\xab\xc3y\xbf\xb2\xc7?\xb1\xb8=\x88#\x82\x9fv|\xfa\rI4\xaa\xfc\xb4\x19\x1e \x11e\x04\xecD\xb4\xff\x00\xf1r\xdd\xd1\xeb\xdd&lt;p9\xef\xdb\x8f\x04\xb2\xbb\x0f\x18\xdd\x1c^\xf6=$\xb0\xd5\xcc?\xa8\xdbr\xd3mw\xb6\xe6\xc3N\x9b\xff\x00\x1ex\xfd\xd8v*x~\xba_u7\xfa\xf3\x1d\x1a\xff\x00\xda/\xb0x\xbe\x9bf\x02\xc2\xe5ue\xe6W\xe9S\x12\xa8\xcbP\xde\xd7$(\xfb\xfd0c\x92s\x16\xe8\xbbM\xb8tR\xb73\x80\xbaf\xea\xd0\x9a\x95M\xdc\x81\xb5IH)&gt;\xd8k3&lt;\xc9Qj\xbf"\xf3\xeaSm,\x02\x9d\xd7\x05E7\xbf&gt;\xc3\x81\x8b\xc7\xd8\x0e\x0f\x1e/\xc7\xd1:[\x11\x08t\x96&lt;\xc8\xb0\x1e\xa0\xb8\x11\xe4\xaa\x1f\xf2\x97\x1c\x9b\x02\xf6Y,p\xdc\x1a\x972"G u7\xf0-ii\xf3\\\xca\xbeVm\xf6\xber9Cn\x16\x82\xf7\xf7&gt;\xe4\xf6\xef\xc7\xdb\t\xd7\x1dj+\xea\x8f=\xab\x94\xa2\xdb\x9b\xe6\xdfk\xdb\xdb\xbf\xd7\x1f@\x9b\xf1Y|\xab\x95\xb7e\xd6a\x97\xa1\xc8H\x10\x9dq\x04\x8d\xa5.*\xe0}\xbdo\xfen\xf8\xd9\xa7\xd260\xf7\x83!\xc4%\x97\x03kJ\x17\xfa\xbe\x97\x07\xff\x00#\xcf\xd3\x1b\x19\xb2\xe8\xb4C\x1a\xfb\xae\x94HR\xdfqq\x16\xf2Ue\x04(\xa9D\xf2y\xb7\xd4}\xff\x00\x96\x15t-+\x80\xe6\xd9\xb2$\x94\xad\xd4\x15\xdd\xb5\x1e\x12;\xfbs\xc7\xff\x00g\x18\xe6\x90\xc7\xb2\xdb\xa6\xa4\xed\x8e\xbc\xbc\xd6\xe6o\xe9\xf7O\xab\x0b\x8fT\xad\xd3\x94\xa7\x8b\xed6\xa7c\xb8R\xa7\x10\xa2\x12\x02\xbd\xedpA\xee-\xc1\xc76\x93\xd3\xb6Y\x97\xa7\x15\xb6\xb2]Jl:km\xbb&gt;\xba\xcb\xd2\x02\x1c\x9c\x12\xd3\xe6:\x1cR\x13\xf8\xa8\x05\x85$\xb6J\x00\x0b*\xba\xc9\x01\x0b\xd8\xb5d\x8e\xa5\xc8v$\x04\xc7\x85a\xd12\xaf\xb5f\x84\x02S\x91\xa3]5\xe4l\x84\xe4i\xc9a\x0bvCiPm\x96\x82P\x94\xa4\x0b\'\xdc\xf2\t\xbf\xd7\x0f46"FlC\x85\x11\x08O!&lt;Z\xdd\xff\x00\xfc\xff\x00\xcfH\xd3\x1clhk\x05\x82\x98\x8d\xd2;W\x9b\x93\xfd\x05\xbc\x82RPS\xc2m\xb4&amp;\xfd\xcf\xb9\xc0\x80\x90\x90\xd9O*yIR\xbe\xc7\x18\x96k\xad\xe9+i\x10\xd2\xb0\x9f*y\xb6\xd1\x8d1\x1dIiK\x017Rw+\xb8\xbd\xb1\xe5\xba\x05\xe8\x95\x9a5\xd6\x80\xc2@\xda\xa4\x9bzZ\xdc\x7f\xa6\x13Uv\xa3f:\xb2\xa8\xd3\xe3!\xe8\xee#\xce\xd3\xe9\xdc\x92\t\xf6\xf7\xe3\xf6\xef\x8f.\x85\x951\xba7\x80A\x04\x10u\x04\x1d\x08&gt;\x07\x9a\xc9\x05C\xe9\xe4l\xb1\x92\xd74\x82\x086 \x8b\x10A\xe4GU\xce\xaa6\x88.\x9a|\x95\xa9\xf4\xc4Yd-\xdf2\x94;\xa4\x92{\x9d\xa4\x02{\x93|\x18\xf9\xb5\xc4\xb4P\xe1\xdcCWK\x1f\xc3\x1c\x8fh\xf2\x0e /\xac&lt;#\x88T\xe2&lt;-EU!\xefI\x13\x1c|\xdc\xd0O\xdd\x7f\xff\xd9'</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67211805555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>798839</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1967</v>
-      </c>
+        <v>803399</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Juliano Roberto Antonello</t>
+          <t>Pablo De Toledo Fernandez</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67208333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>801563</v>
+        <v>804981</v>
       </c>
       <c r="B21" t="n">
-        <v>1954</v>
+        <v>1974</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fernando Seabra</t>
+          <t>Rafael Paiva</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.11\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x07\x08\t\x03\x04\x05\x01\x02\n\xff\xc4\x00?\x10\x00\x01\x03\x02\x05\x02\x04\x04\x04\x03\x07\x03\x05\x01\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!\x081\x13"AQ\t\x14aq#2B\x81\x15\x91\xa1\n3Rb\xb1\xc1\xf0\x16$\x92%\x82\xc2\xd1\xd2\xe1\xff\xc4\x00\x1d\x01\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x05\x07\x03\x04\x08\x02\t\x01\xff\xc4\x008\x11\x00\x01\x03\x02\x04\x03\x05\x06\x06\x02\x02\x03\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x06AQ\x13"aq\x81\x07#2\x91\xa1\xb1\x14\x15BR\xc1\xd1\x083b\xe1\x16C\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xcc\x18\x10\x8c\x18\x10\x8c|\xf8\x89$\x84\xa8\x1d\xbf\x9b\xe9\x81\t=\xa8\xba\xa3\x914\xa6\x82\xac\xcb\x9f\xf3$ztT\xa8%\x05\xd5]o,\x9b\x046\x81u-D\xf6JA\'\x11\xcf\xa9O\x89\xee@\xd3\xba4z^\x8d\x88\xf5\xaa\xfc\xe6R\xeb\x7f8\x85\x88\xf1\x1b*\xdaK\x9blT\xb0\xa0S\xe1\x82&lt;\xc0\x82E\x8e#\xab+\xe1\xa5i\x17\xef[o\xb2\xde\xa3\xa1\x96\xa9\xc0\xdb\xbb{]D\xea\x7f\xc5\xd3\xaa:\xded\x97A\xa4\xe7\xeaKk\x90\xa2\xdbr\x1f\xa42\xa6\xe3\xb8\x08\xbf\x86\x80/ap,\xb2\xab\x93k\xdf\n\xa6&gt;0\xda\xf9\xa7\x94\xc8og\xc8\xd9Z\xb5\tHk\xc4\x98^LY\x8e\x02S\xb9j\xda\x0bh\x1f\x9b\x90\xd1\t\xe3\xbf6Wn;\x89GP\x03\xc0 \xf8&amp;\x8f\xc8p\xf9!%\x84\x82&lt;T\x84\xd3_\x8a\xee\x84g8\x90g\xe6*\xd2\xa8I\x9a\xf2\x1aK3io--\xdc_\xc4\\\x84\x1f\x0c7oP8\xf5\xc4\xaa\x835\x8a\x846\xa7Dy\xb7\x1by\x01m\xb8\xd3\x81IZH\xb8 \x8e\xe0\xfb\xe1\xa6\x83\x10\x86\xb9\xa7!\xd4n:%z\xea\t\xa8\\3\x8d\x0e\xc7\xaa\xd8\xc1\x89\x05\xa2\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c6\xfdL\xeb\xcd\x1f@t\xf1\xea\xfb\xce6\xe5Zr\xc4&lt;\xbd\x06\xc5J\x911\xc2\x10\xd5\xc0\xe7`Z\xd3\xb8\xf0\x00 ^\xea\x00\xe2\x95\xf9#.\xe8\xbd\xc2\xce\xd2@\xde\xaa\x0b\xfc@\xb5\xda/N49\x14\xbc\xc1X\x95\x9a\xb5\x1a\xa9ClC\xaaLd\xa8B\xde\xa2\xa9+\x8e/\xf8\nW\ti)6H\xe6\xc4\x92UW\xd9\xf3\xab5\xa9nO\x83G~4\xcf\x0c\xf8\xf5F\xe3\x15,\xa4\xa3j\x94\xe2\t\x05.$\x01\xb9I\xba\x00=\x94AN\x15\xaar&gt;\\\xb7\xb9\x1b\xdf\x99\xe6\x9a\xa9\x1a\xe1\x1ekX\x1d\xbc\x02De^\xa0\x98\xa7\xba\xd5S2\xaec\xcd2\x9f\x1d\xa8\xf1[Y\x0e\xa1.X\xdbq\xfc\xc5v;nI\xb1\'\xb0\xc2\x8eF\xb7g\xedR}\x99\xf5p\xf2b\xb6\xa0\x86\xa3\xa1&gt;\x1cv\xdb\xb1&gt;\x1d\x9d\x16Z\xc1\xe0)W\x06\xe4\x84\xdf\x9ca\x92\x08\xcf}\xdc\xb6[Q\xc9#{\xa3\x9a}\xe9z\xd7\x93!d5Ss]Y\x9a\x95S\xc1J!\xd1W0\xfc\xaaO\xaaV\xa5\x00o\xfa\x94O {\xde\xf8\x93\xfd0u\xfd\xad\x9aO\xa7\x90\xf2\x9e\x99\xe6\x18\x93#\xd3\xe4\xb6UI\xcc\x1b\xe4\xb6\xe0R\x86\xf6c\xdda\xd4\xa3\xcd\xbbx!\t\xe0\x04\x9b\xf1\x11\x0c\xd58t\xfd\xb3\r\x85\xf6\xea9\xa99\xe9\xe9\xeb\xe9\xfb)\x05\xcd\xb4&lt;\xc1\xe4\xad7N\xb5\x13,\xea~W\x8d\x9a\xb2\xc4\xf4\xbc\xcb\xcd\xa1KM\x88-\xa8\xa4\x1d\xa6\xe0{\xf0{\x1e\xe2\xf8P$\x80;b\xc5\x8aF\xcd\x18{v"\xe3\xd5W\x12\xc6\xe8d,v\xe0\xd9}w\xc1\x8c\xcb\xc20`B0`B0`B0`B\xf0(\x1b\xf3~1[\x7f\x16\x8d^\xc9\xda\xb9\xaa9o$\xe9\x0ez\xfe!X\xca\xb1j-\xd5Y\xa6\xb8\xd9CR\x8f\x82\xf3M\xa5|\x97\x1eJ\xe3\x8b\xb2\x07;\x90n\x14\x13\x88ln\xad\xb4\xb4%\xc7sk|\xd4\xae\x07J\xea\xaa\xf6\xb4l/\x7f\xb2\xad\x8dF\xd5\xedf\xd5MB\x91\x98\xf5\x8f5\xce\xaa\xd4)\xec\xa2$YJ}-\'bVT\x10\xed\x806I*&lt;\xed7$\x1b\xf0\x03\x93\xa6}=U\xb5B\xa5\x16]\x7fN\x13!E\xb0\xea\xfeM\x94\xb6\xe7\xd1j\xb8\xd8\xd9\xb7\xad\x81"\xd6\x02\xf8V{d\x9b\xde\xdfR\x9e)"l~\xec\r\x02]\xd1~\x1dq\xa4TS\x01\xcd6u\x98\xee=\xe6R\xd26\x94\x0bY^^\x01\x1d\xbb\x0b\xd8[\x82p\x83\xea\x0f\xe1\xf5X\xd2\xdc\xc2\xda\xa8\xeb\x90)oY\xb6\xd9B\x87\x80\xd1"\xdb\xb6_\x93\xeeG\xf5\xc6H\xe4\x99\xad\xef\x8d\x96w\xd2\xc4\xe1\xdcL\x8ea\xd1\x9c\xc7\x94kd\xbf\x98\x19\x8e\xdbe;T 8\xe3\x8d\x02\x7fE\x87\'\xecG\xa9=\xaf\x87oK\xf2\xd6O\xc9\x14je_,\xd4\xeaU\x89\xd5G\x9e.="?\xe7k\xb2\xbc\xa5\xc5\x90\xa2\xad\xc9\xfc\xc9\n=\xbd\x95\x1b[P\xe7E\xdd\xb7\x8a\xf5KJ\xd8\xa4\xef\\\xf4So\xe1\xdb\xd4\xa4|\x99\xaa\xf4}4oP\xf3$J%fZ#\x1a|\x88\xed\x86\x98x\xdc6\x85!\xf6\xbcF\xd0TB&lt;\xb6 \xa8\x1b\xda\xf8\xb3\xae\x05\xb9\x1d\xb0\xd9\xc35.\x9f\x0f\xca\xe3r\xd3oNI+\x89\xa9\x9bO_\x99\xa2\xc1\xc2\xff\x00\xda\xfa\xc1\x86D\xbc\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\xa2\x97\xc5_\xa9,\xe1\xa0:\x0b5\xcc\x98\xdb\x88~\xaa\xc3\x90\xa5NnieQ[q\x04\x02\x8d\xbem\xca^\xd4\xee\xf2\x90\n\x82T\x14AO\xe7\xff\x00+\xd3s\xfe~\xd7\xe8\xb44f9L\xa9\xea\xc7\xfe\xa4\xf3r\x0b{\x12\x1c!\xc5[\xf4\x9b\x12\x91kv\xfa\x8c@\xe2\x1e\xf6b\x1c&gt;\x11\xa2`\xc2\xc6F\x0b~\xa2\xac?Lz2\xc9I\x91\x16e~\x1b\x8e8\xca\x1bq&gt;!\x03\xfd\xaem\xfb\x1f\xb5\xaf\x89K\xa69&gt;\x89\x95\xe0&amp;\x93F\xa74\xcb!\xc2\x02[H\x06\xdf\xf3\xfdq\x06\xd6\x1c\xc4\x00\x9fY\x926\x84\xe1\xc3A@JCiRm\xca@\xfa\xe3~\xa1\x90\xa8\x19\xa6\x9aX\xaa\xd3\x19\x90\xdb\x89\xf3!\xc4\x02\x0f\xd3\xed\x8cm\x0fc\x96i\x0cyA\t\xb6\xcd\x9d\x1b\xe9\xd5]\xb54\x9a\x1b)C\xcbQ\xda[I\xf0\xc9\xeeG\x1c_\xe9\xef\x883\xf1\x0f\xe9\x139\xf4\xe5\x97#g\r+fC\xd4\xa3Xm\xc7\xd2\x87\x15h\xc5HRT\xae\xe2\xde`\xd2\x81\xb8\x03i\xf7\'\x11rD\xd8\xe6\xb9\xd8\xad\xb2\xe6\xd4\xd3\x10&gt; 4\xf4H\xbd\x19\xd6\xdc\xf2\xdei\xa3\xd65\xa2\xaa\xe2\xa0\x87#)\x0e8\xb0^p\xb4\xf2\x17\xb1!\xb0\x1cp\xee\x01&lt;^\xc0\x83\xce/\x9fKs%O8\xe4\x1a^n\xacR]\xa7\xbfT\x8a%*\x9e\xfa\x82\x9c\x8c\x97\x0e\xe4\xb4\xa2\x92ARRBM\x89\x17\x06\xc4\x8cO\xf0\xabY\x13\xa5dc\xbal}vH|W\x98\xf6oy\xd7Q\xf6)G\x83\x0ei5\x180!\x180!\x180!\x180!A\x1f\x8f\xfc6\xe9=\x0e=\x9b *;/1\x9a"\xad\xc4\xab\xca\xa9\x0b,\xba\x81\xf5QJwX{\x80\x7fN)\xc7\xa4\xa51U\xd57\xab\xd9\x8e:S\xf3\xd5e&lt;\xdb\x8bP\n}J**"\xe4\xf06\xd8\x0f\xf7\xbd\xe2+#\xf7\xe7\xc4)\xec5\xc7+OB\xadC)KfT:mE&lt;7".\xc3\xb7\x80\x08\xe0\x0f\xf9\xff\x00\xf7\x0e\x1d\x13z\x83\x7f.\xa4\xa4%@\x15\x0f\xb5\xbf\xdb\x10\x0evW\'\xc8\xbb\xec\tQIvR\xdeK~\x12\x8d\x95\xf9\xb9\xed\xef\x85].S\x8aF\xc6]\xf3\'\x82\x94\xfe\x93\xed\x8cou\xeeB\xd8\xec\xec\xd0\n\xda}\xa7\xf6\xaa\xeb\xed\xfd1\xc8\xcc\xd9Z\x8b\x9a\xa8\xefQ3\x155\x99Q\xe46\xa6\xdfa\xf6\xf7%i&gt;\x84\x1e\xf8\x87\xa89\x9d\xaa\xcb\x0c\x99H-P[\xac.\x9f\xb26\x80\xe6\xb4\xe6\x9d4\xa0G\x83h\xe5\xe7G\x84\x16\x95\x10m\xb7\x9eF\xe1t\xfb\x0b\xf2,qd\xbd\x01g\x965\x1b\xa4&lt;\x93\x99\xa3\x976\xff\x00\rT`\x97\x9c\xde\xa4\xa5\x97V\xd2A77\xf2\xa0[\x92-lM\xf0\xc7v\xa5\xc3\xa8\xfeBT\xe2\xf2\x1f\x0b\x08\x1c\xfe\xe1&lt;\xf80\xee\x90\xd1\x83\x02\x11\x83\x02\x11\x83\x02\x11\x83\x02\x14\t\xfe\xd1\\\x18\xb5&gt;\x80"\xd3\x9eS\x81\xe7\xf3\xe5=\xb8\xaamD\x14\xa8\xb3$(\xff\x00\xe1\xbcs\x7f\xcd\xeflTOF\xb9\x19\xcdf\xd6\xdae66\xe6ht*h\x95V[gj\x94\xf1!\x01\t\x1e\xca#w\xa0\xb6\xef|Db\x07-\xca\x9e\xc1\x99\xdaH\xd6\xf8\xab4\xa3\xd5\xa0?Ka\x84\xc9K\t\x8c\xd8\x1f\x97\xca\x9b\x1b\x0f\xe6&gt;\xf8[\xe5\xcc\xfd\xa7T\x88\x1e,\xac\xf7KM\xael\xa9\xc8\xdcU\xdc\xf0M\xcd\xac{\x03k}1\r\x1cm{\xae\xe4\xf8\xde\xeb\x00jYe-R\xc9\xf2\x15\xf3\x91kq\xe56\x94\x95(\xb2\xe0R{v\xe3\x1d\xd63\x85\x1e\x9a\xcc)\x0e\xafg\xcc8T\xa1\xdb\xcbn\xf8\xc5#c\xccl\xb7[\x1c\x8eh\xf1J8\xb9\x9a\x9fQ@Dw\x9bWk\xa5*\xba\x87\xed\x8cS#\xb8\xe03ZP$\x0b\xa4\x03\xdf\x11\x15\x90\xbb\xe2\x0b\xccl\x10\xbb^j\x10|M\xf5.^N\xcc\x14\xba;\xd4\xb5JMz\x13\x8c\xc3;O\xf7\x89ZTSq\xefo\xa1\x18\x9c\x7f\t\xc8qa\xf4\x1d\x92\x1d\x88\x87\x12\xdc\x94Ky\tyWRRe;\xb4\x1f\xa8HH?[\xe2S\x86\x1a{rOC\xf7\tc\x8b\xec"\r\xe8G\xd9I\x0c\x18xH(\xc1\x81\x08\xc1\x81\x08\xc1\x81\x08\xc1\x81\n\x06||\xa6\xc2\xact\xe5\x94\xb4\xb9\xc8n*Mk6*L\x19L\xb6V\xa6\\\x8b\x15\xe5\xda\xc3\xfcAe=\x8d\x8d\xb8\xf6\xad\xaf\x87\\\n}&amp;\x05zt\x16\xdbK\x8a\r2\xb4\x84\xed\xdaPUa\xf7\xdan}q\x03\x89I|\xcd\xe9o\xe18\xe0\xd4&amp;8\xe0\x9e\xff\x00\x18w\xd0\xdb\xf8O&amp;\xbdg\xe9Y6\x80\x97\xa2\x7f\x10\xa9n\xd8D*kJq\xc5_\xb9 \x0b\x80\x07{\x02O\x16\x1e\xb8j\xea\x9a\xf1\x9c3\xe5xi\xcc=\t\xaf@\x9e\xa1\xb5\xaa\x9cw\x80J\xec\x96\xb6\xdd\xb2\xbf\x0c\xeeC\x9b\x85\x9d7\r(\x9b\r\xb7\xd3\xa4\x84T\x87\x9b\xda\xc10\xcdT\xeaC\x18\xc8M\xdc\x1b\xe4J_\xf4\xe3T\xd4\xaaV`m\xc9\x8d\xd4\x1b\xa7\xb2\xe2\x9b[2\xac\x84\xb8\xea\x0f)%IJ\xd2mumP\x07\x82.G&amp;R\xf5.\xc6|\xc8ZP\xdeu\xcb\x92\xbciE\xa2\xa6\x19e\x858wv\r\x84\x0f\xccM\xfd,x\xc4]Ps\x05\x81\xe6\x13\x15+\xc96x\xda\xe3\xe5\xaf\xf0\xa1}7\xac\x1a\x9eD\xae\xc7\xcd\xf9\xcbVj\xd4\xd8\xafL\xf9m\xed\xc5yI\xf1\x92\xa4!I\xd8\x94\xb8\x91e8\x90R\xa5\x05\x82yH\x1c\xe2Rh\xb7Y\xeef\'\x85.\x8fXz\xa4\xe4\xa8\xa8\x95\x01JV\xdf\x99l\xa0,\x84\xa1`-\xb5\x94y\xc2\x16\x94\xefH%;\x80Q\x1a\xb5\xd4\xb3S\xd2\xb6bW\x9az\xdaz\xba\xb7\xc1mF\xfa}\x96o\x88\xfe@s&gt;h\x15?;S`\xee\xa8\xd1*h\xa8ERE\xd4\x92\x19r\xe0{\xf9\xac-\xf4\xc4\xcb\xf8e=NWFyA\xb8O\xb4\xa7J$\xc8\x98\xdbI)KN\xbf!\xc9\x05 \x12v\x8b:\x08\x1e\xc4v\xed\x89\x0e\x16s{B\xd2u\xb1\xb7\xcc%\x0e4\x89\xe5\xa2@4\x16\xbf\xd5?\xf80\xf0\xab\xc4`\xc0\x84`\xc0\x84`\xc0\x84`\xc0\x85\x13&gt;-zW79i\x1eT\xd48\xd2\xfc\x162^nj}I\xcfQ\x15m8\xd2\x88\xff\x00\xdc\xa6\xc7\xef\xf4\xc5Yty\x91*\xd9r\xa9\x9be\xb2\xb0\xe56T\xf0)\xb2\x81."G%EH\xec8\x1eS\xec\xa1\xf4\xb6\x17q6\xe5\x99\xc3\xf7\x00~Z+\x1b\x03=\xb6\x11\x03\xc7\xfe\xb78\x1f]G\xddK*V\x9b\xe5:\xc5-\xb4\x18InK\xcd\xdd\xe52\x8d\x9b\x14;\x1d\xc9"\xc7\xf9\xfd-\xce3\'E\xe6Tg*4\xaa\xd4\x94\xa1)I\xf9\x84\xc4i\x05C\xbe\xd2\xad\xa4\x92=\xef{\xfa\xdf\x11\x91\xbb\xb3nPS;!t\x87\xb4oD\x9c\xac\xe4\xc8\x94y\x7f\xc3\xa3&lt;\xfb\xdb$\x04\xb2\xec\xa9*[\x8a7\xe5&gt;bl&gt;\xbc\xdf\x8f@1(]\xa0E\xce\x9aT\xc4\x1a\x94r\xad\xbb\x01J\x8fo(\xdaG\xef\xed\x8dz\xb8\xcc\x8cs\x94\x83cd10\xff\x00\xc8_\xd5G\xf9\xbd\x18fzl\xb53\x95\xdd\xa3T\xa9\x0b\x90\xa7\x13K\xaeB*\xf9u)W^\xd5\'\x83s\xee\x93k\x0e\xd6\xc3\xa7\x96\xfao\xa8\xd3\xa8q\xa5\xe6\xec\xabEe\xd8\xc5&amp;\x0b\xf4\x18\xa5\x89-)"\xc9\xda\xf5\xc2\xbf/\x16\x04\x028\xf4\x18\xd0\xab|\xd54\xd6\xbe\x9fo%\xf8\x1dIK=\xdd`I\xb5\xfa\xf4\xbf5\xa3\xd4dH\xac\xe9#\xd4\xf7\x16\xb5x\xae\xf8d\xc9R\xd6\xa0\xa2\nAV\xf5\x13\xc1#\xb9\xe3\xbe$\xc7\xc3\xf7 \xabN\xba^\xa0\xd1\x1c\x80\xb8\xaay\xd92\x8bN\x8f0\x0e\xbe\xb5\x82}O\x04r}1\xbb\xc2\xcdq\xac\'\xa3\x7f\xa4\xb1\xc6r1\xb8K\x9b\xcd\xcfg\xc8\x07}\x13\xdb\x83\x0f\xea\xaaF\x0c\x08F\x0c\x08F\x0c\x08F\x0c\x08MgZy~\x0eg\xe9g:\xd2*,\xa5m\x1a*\xddZU{\x1f\x0c\x87=9\xfd8\xaa\xcc\x81\x95)\xfat\xd1\xca4\xa7Ti\xacIqt\xf4\xa9\xe2\xe6\xd6\x16\xe1XI\xbfo2\x97\xc7\xb1\xf6\x1cA\xe2\x8c\xf7\x81\xde\x16\xfa\xa7\xbe\x18\x91\xdf\x96\xc9\x1f,\xe0\xfd\x13\xc1\xa5\xf9\xbe\x9fNu\xa8u\xf7\xbcG\x1aO\x99\xc4\x80\x9d\xdf\xb0\xfd\xaf\x8e\xa6f\xd7\x95W\xb3\x03\xb9\x1bI\xe8\xed\xc8\x99\x1c\x03S\xa8-$\xb3OI\x1c\x15\xab\xf2\x95\x11\xc8E\xca\x8f{Z\xe7\x11n\xcaZ,5:\'ZG9\xba\x93\xdd\x1a\xff\x00\xd2bu\x07_\xa0e|\xe3\x1a\x0enb\xac\xf5I\xca\x83\x8bjDZ&lt;\x97\x99(I\xb8*q\x08-\xb6l?Q\x1f\xe9\x87\xde\x0f\xc4\x03B2\xaeM[\xb23\x0c\x8f\x97LvV\xa4\xc7\x82\xec\x87E\xc7o\t\xa4)\xc2B\xaf{\x02l.E\xaeq\x8e\xa4\xf6p\x90G\x92\x95\x89\xb1\xd4\xb4E}7&gt;\x96\xb7\xff\x00j\xbb\x19\xf3\xa9\x8dD\xd3\tP\xb3\xe53\'9Z\xc9\xb58\xcdHB\x93\x19BLd\x94\xff\x00x\x11m\xcaA\x1ekZ\xe3\xbd\xad\x873!\xf5-\xa7:\xc9\x97\x18\x95@\xaf2\xe3/\'{jm\xc0\xab\x1f^\xd8\x8a\xcc;\x0b\x1e|\xd6\x1a\xac:\'\xc8\x1f\t\xbb\x9b\xb8\xe5q\xccx\x15\xa7\xa9\xf9\r\x8dJ\x8f\x1e\x8eR|\x06\xe6\xb7)\xdd\xb7!\xc6\xdb\xe5H\xef\xc9Rn\x05\xf8\xbd\xb11r|E@\xca\xd4\xf8\x85\x01*j\x13HRG\xa1\x08\x1cb[\x85A\xcf!\xf2H|n\xe6\x88 g=o\xf2\x0b\xa9\x83\x0ej\xbcF\x0c\x08F\x0c\x08F\x0c\x08F\x03\xdb\x02\x16\x95n\x8fK\xccTiY~\xb7\r\x12a\xcd\x8e\xb6%0\xe0\xba\\mi)RO\xd0\x82F+\x9f\xad\x8e\x972\xf7Ku\x9a\x1dG*\xe6\t\x93\xa0\xd7\x9c\x98\x94\xb1)\xb4\x8f\x94K~\x16\xc4\xee\x1c\xb9\xfd\xe1\xb96\xec\x9e\xdc\x93\x1d\x89D\xd7S\x97\xf3\x1f\xd8L\x1c=\\\xf8j?\x0f\xfa^~D\x04\xd7d\x98.\xd5gH\xf9e8\xa9OS\xdcTD\xed\xb5\x9c\x08;R-\xf5\xc2\x1bP\xb5\xb6\x17L\xb4z,\x0c\xe1M\x93M\xcb\xd5w#D\xa2\xd4\xa1CvS\x95\x1a\x84\x81\xb8\xefKHQ\xf1\\Q\xbf\x9b\xf3\x1b\x81\xf9p\xbd\x1el\xc2\xca\xc6\x136(\xae\xe3`7\xf2YR\xe6\x9ef\xf0\xe2j\xa6\xbf\x05\xe5\x84\x85\x19T\xf2\xc17QH\x16qC\x92AH\x1c^\xc7\xbd\xb0\xb6\xd2\x9c\x97\xd2\xfe\x9a\xa15z^g\xf9i\x88#{\x85\xb4\xa9\xc4(\x9e\xc4o\xb0\x17\xf4\x17\xc7\x9a\xb6\xb6H\xb3\x07\x03\xea7S\x98tf@]\x19\x06\xfc\xefu\xd6\xea\x0f\xacn\x96\xe0e\xa6\xf2\x85wZ *\xad1\x95\x1aM)\xbf\x17\xe7\xa4\xa96\x002\xdaRV\xb3~&lt;\xa0\xf3\xfc\xb0\x84\xe9\xba\x15j\xa9\x9d`g\xd4QgR\x1b\xa9*{5\x88\xb2\x98,\xa9\xf7\x18SiL\x85\xa3\xf4\xbb\xe7)R\xac\n\xb7#w)\xc4)l\x9f\x87$\xecv=V\xc3\xe6kg\xca9onGM\r\x94\xdb\xd1\xea5gP\xa6E\xa5R[}\xc5\xf8\x7f\x8d!\x17\x08i&amp;\xdeu\x9f\xf0\xf76\xf5\xed\xeb\x89v\xca66\x94\x03\xf9E\x8e\x18\xf8Z\x19\x19J\xf9\x0e\xce"\xde\x9b\xaa\xb7\x8ejc\x92\xb5\x917v\x82O\xad\xad\xf6\xbf\xaa\xfb\xc1\x86\xb4\x8e\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\x8c\x18\x10\xbeT@\x168\x8b\x7f\x16,\x8b.\xbf\xd3\xf4\x0c\xed\x05\xb2U\x97k\xad*R\x83{\xad\x19\xf0YU\xfd\x86\xf55s\xed\xfc\xf1\xadT\xdc\xd4\xce\x1e\x0bw\r\x93\xb2\xaf\x8d\xde?}\x14\x03\xca\x19\xfd\xea5V5C\xf1\x12\xa8kI\xf0\xdbE\xee\x05\xafq~\xfc\xfd}{\xe1\xdb\xacE\xc8Z\x99\x95\xa5e\x8a\xb4\x18s\xa1\xcfE\xd9\x8e\xf3)R\x14\x8b\xee\xdaRGt\xab\xb7b\r\xadc\x85f\xfc`+I\x8e\x0eh\xd1\'r\x95w6\xe9EM0!j\xa4\x8a[,8\xda[b\xa9O\x13#:\x848\\\xbf\x8bo\x15\'\x929X\xb0\xb5\x8d\xc08vr&amp;\xb3e7\xe4\xa8Vuw/\x158\xfa_\xdbM\xa0\xab\xc5*J\xb8\x00\xa9J\xe3jR\x9b\x90O\xad\xc7\x03\x1e*cm\x81\x12Xk\xa5\xaf\xbe\xa5I\xc3\x81\xe1u\x0c2\xc4\xd2\x1cm\xa0p\x03\xeb\xa8\xf2\xd5t"t\xf9\xa2\xf5\x8c\xf45\xa9\xdc\xb6\x8a\xa5m\x98\xaab\x05n\xa8\xd2T\xe4VO%\x0c"\xc1,\xa6\xfd\xca@R\xac.x\x16FU\xeaYz\x8f&gt;N\\\xa6\xc2\xfc({\xd0\xb7\x83w)*^\xf5\x81nn\xa3\xe66\xef\x7f\xa6!$xla\x8d:\r\x07\x92\xdd,lo\x0c\x00\x0bon\xb7\xb9\xd7s\xaf5,z\x01\xa4I^E\xa9f\xf9\x03\xc9.J#GU\xb8)i&lt;\x91~H\xba\xad\x7f]\xb8\x90=\xae\xac=`\x91\x98\xf0\xb8\xc1\xe9\x7f\x99\xba\xa6\xf8\x92a&gt;53\x87[|\x80\x1f\xc2\xf7\x06%\x94"0`B0`B0`B0`B\xf0\xa6\xea\xb9?\xb68Z\x8d\x92hz\x93\x90\xeb\x19\x0f0\xc2L\x885zk\xd1$\xb4\xbf\xd4\x95\xa0\xa7\xf6"\xf7\x07\xb8 \x11\x8f.\x19\x9bb\xbd0\xe5xp\xe4\xa8\xe9y\xbdT9\xcfQ\xaa\x92\x9c\x8dQ\x84\xeb\x88p(\x8b,\x03\xf9\xbb\xfd-\xe9l8:;\xad9}o\xbd\x97\x1au\xb76\x848\xca\x96\xaeOop-nn8\xb9\xee\x076R\x11\x1e\xd3UfGP\x03\x1a\x9f\x86(Y;&gt;\xd1\x9bZP\xdc\xb4&lt;&lt;\xcaR\xc7\x95V\xfb\xfb\xe3\xb3\x92\xf4\'Ei\xd5\x00\xfa\xa1\xa5\xb9V\xba\x93\xe3q\x7f{\x0e\xdc\xdb\xb5\xb1\xe2\xa1\x96m\x8a\x9f\xa4s\x83Ajp35W+\xe4\xdc\xb4\xe3-\xccg\xc3e\x95\x1d\xbe\'&lt;\x0f(\xfd\xce#Fh\xce\xb95\xaa\xf3\x8d\xd4\xf3DJe=\x0f\x07j\x15\x89\x8f\x16\xa2\xc4AU\x94\xeb\xca\x1d\x9b@\xf3(\x9b\xd8\'\xedu\xd1\x1b\xa4\x9d\xb1\xb3r@\x1e\xb6[STvq\xbaG\xf2\x04\x9fEf\xda\x13\x03O)ZIC\x83\xa5Y\x8a\rb\x84\x88)\xf9\x1a\xad&gt;R\x1ej_\xaa\x9d\x0bA)QR\xaeM\x8fsl,I\x1e\x9d\xf1g\xc5\x17\xe1\xe3\x11\xf4\x16\xf9*2i]&lt;\xce\x91\xdb\xb8\x93\xf3\xd5{\x83\x19V4`\xc0\x84`\xc0\x84`\xc0\x84`=\xb0!|X\xdb\x9b\xe2\x90?\xb4\xa7\xf1{\xeb\x03B\xb3\xec\xad\x01\xe9\x0fR\xde\xca\xb4\n+(\x87\x9d+tT\x84\xd4\x155\xf6\x92\xe2\x12\x87\xff\x003M\xa4-(;\nU\xbc\xd8\x9e\xc0oP\xd2\xba\xa0\xc8\xe0/\x91\xb9\xbc4 \x7f+R\xaav\xc4\xe8\xd8\xe3l\xce\xb6\x9f?\xad\xad\xea\x900\xd9N\xaai\xb5\x0fS`\xcaQ\x95:\x83\x16\xa0\xa5\xba\xab\x87\x92\xf3)qI$\xfb\x95r~\xa7\xeb\x86\xf79\xe6J~^\x94\xdb\x92g9I\x95\x1dVozv\xf8k\x06\xde\xa3j\x81\x1fk\x8f\\$\xb3\xe3\xb7Eh9\xbe\xed\xa7\xad\x8a\xfa\xa5u\xad\xab\xf9\x1e\x08\x99\x01\xe6*\xcc\xb6\x9bn\x8a\xe2JTM\xb9\xdalo\xda\xf6\xb8\xe4s\x855/\xe2?\xab5IM\xc8\xa7e\x85\xc6\x90\xe3\xdb_S\x04\x84\xa5\x1f\xe2\x00\x9eTo\xddF\xc2\xdfk\xf8\x99\xac\xd4\x92\xb7\xe9\xeb\xaa\x1a\x03r\xde\xc9}\x96\xfa\x99\xcez\x98\xd7\xcb\xd7\xeb\xa8u\'\x9f\xe1\xd1\x9d\xf1\x16\xb5\xde\xc1KX\'r\x8d\x85\x92.\x91\xf5\xb0\xb7s\xab|\xa4\xac\x93\xf0\xfb\xd5,\xdb^mI\x98\xf6W\xf0\x1bh\xab\xfb\x94\xbc\xfbH\xdb\x7fR\xad\xfc\x9b\xfd0\xbf\x0fw\x11\x8c\x0en\x1fp\xa5f.\x93\x0e\x95\xc7\xf6\x93\xf4O\xbf\xf6j\xb5\xad\xea/G\x99_Is\\\xc5\xa5\x9a\xd3\x93%Q\x97!\xc2v\xbd\xe3\xaf\xf0\xee\x7f\xc6\x81q\xf5E\x87\'\x16\x90\x94\x8b\xdf\x16\xb5dF)\x1a\x7fsA\xfak\xf5T\x8b\x1e\x1f\x9a\xdc\x89\x1fU\xee\x0cj,\xa8\xc1\x81\x08\xc1\x81\x08\xc1\x81\x08\xc1\x81\t1\xac\x1a\x93B\xd1\xdd+\xccZ\xad\x99W\xb6\x0e^\xa3H\x9f#\x9f\xce\x96\x9b+\xda&gt;\xaa ${\x921\xf9\x92\xea\xa5\xfa\x97R\xeeg\n\x86v\x91\xe2\xd43d\x89R\xa68\xa1}\xb2\x1dp\xb9\xbc}\x96A\x1f`=0\xf9\xc1\xb4-\xa9\xa7\xa9s\xb9\x8c\xbf0o\xfc$\xee&amp;\xab0T\xd3\xdb\x91\xbf\xc8\x8b\x7f*GtZ\xa5J\xe9\xaf!\xc4\x95r\xfc&lt;\xab\x0e4\xa6\xd2F\xe4\xad\xa6\x12\xdb\x88\xf6\x16)?\xbe\x169\xafL\xb2\xe5]\xbf\x071P\xa2\xce\x8e\x9b+z\x92\x14\xa29\xb8\xe7\x9e-\xcf?\xd3\x14\xcc\x8dtU\x0e\x07B\tW\xfcMl\xb4lp\xd4\x16\x8f\xb0Z\x99\x7f\xa2\x8e\x9d\xf3\xe3\xa8\xa7\xb7\x92\x18\xa7\xca\xdd\xb9Jm!\xb5\x0ex\xe4\x00\xab\x8f\xa1\xfbw\x18UP~\x19\xdd8P\xde\xfe#Z\x80\xe5Cc\xc4",\xb9\xcbx\x14\xfdw\xdcw\xb7\xa65+36,\xc0\xac\xd4\x11^l\xae\x1a\'KOt\x13L\xf2!R\xf2nN\x83O\xdb\xe5Ii\x906$\xf3\xb5&gt;\x82\xe3\xbd\xad\xcf\xbd\x80\xc2w\xe29\x94\xd1Y\xf8zj\x95%AQ&lt;L\xaa\xfb\xd1\xc9H6[+K\xc3\xd7\x92|$\x93\xedp8\xc2\xd8\x95\xcc\xab\x8d\xfd\x1c\x0f\xc8\x84\xdb\xf8V\x1a\x19X4\xbbH\xf9\x84\xde\xf4\x00+ZM\xd2\x86\x9e\xb0\xcc\xc53*\x9fE\x8d)\xb9M\xaa\xce4\xf1\xb2\xef\xc7b\x15\xc8\xfa\xe2\xe4zy\xd5\xb8Z\xdf\xa4T}C\x8a\x12\x87\xa5G\xd9=\x94\x8bxR\x11\xe5q6\xf4\x1b\x81#\xe8F/\xdc^\x9e\xd8|\x12s\x00\x03\xea\x07\xf4\xb9\xa6\x96KWJ\xc1\xb1$\xfc\x8f\xfd\xa5\xbe\x0c-\xa9T`\xc0\x84`\xc0\x84`\xc0\x84c\x14\x99,Der\xa5&lt;\x86\xdbm%N8\xe2\x82R\x90;\x92Oa\x83t*\xd3\xf8\xc8\xfcK\xf4+4h\xc5K\xa5-\t\xcfM\xe6J\xf5R\\s\x98&amp;Q\xdc\xdf\x0e\x1cV\xdd\xde[\xf1\xc7\x95\xc5\xa9m\xa4mA %*\xdcA\xb05)"s\xce\xbcP\x94yRn}\x8f\xd3\x17?\x07\xe1\xd3Pa~\xf4Y\xce9\xad\xcc\x02\x00\x17\xf4\xfb\xaa\xab\x89k\xe2\xac\xc4=\xd1\xb8h\xb5\xf9\x12\x0e\xb6\xf9\xd9;\xdd\x1d\xe7\x98\x99w9\xbd\xa55\x07\xb6\xc7\xaa6\xe5F\x86\\\xb6\xd5\x82@\x92\xc0\xbf\xeaJ\x94\x1c\xfa\x87\x15\xe8\x93\x89\x88\xd5\x1e=V\x97\xf3t\xc5%*\x1bC\x8d{\x8en\x08\xe6\xd7\xedc\xed\x8a+\x8a\xe8\xff\x00.\xe2J\x88\xf6\x05\xd9\x87\x91\xb1\xfeWEp^!\xf9\x8f\r\xd3\xbc\xeaCCO\x98\xd1z\xf6U\x91R\xa7&amp;]1\x99PfG\x1f\x86\xfc\x15\x84\x12\xae\x0f)7\x16\xec;zqnp\xac\xd3\x13]\xcc\r\xa6&gt;m\x8e\xe3\xae4\xe5\xd2\x97]#r\xb8\xe7\x8b^\xc3\xd7\xedq\xdf\n\xb8\x85\xbb\x1d\x13\x86\x1e\xdc\xb2\xea\x9ct\xd3\xe0\xb2\xda\xa5\x13\xc2S\xe6m\xb4\x8b\x81s\xeb\xfa~\xf8\x8c?\x11\xddQ\xff\x00\xaet\xe5:\x0fFaI9\xa6cT\x99\x05*6C.\xab\xf1\x8d\xfdU\xe1\x07?\x7fS\x88&lt;2\x99\xd5\xf8\xad&lt;\x03\x9b\x80\xf9\x90\xa7\xb1J\x96\xd0\xe13\xcd\xd1\x87\xec\xbbYz\x83\x1f)S#\xe5h\xb1\x1cn&lt;x\xe8i\x85$\x05%\x1bSk\x0b\x01\xc7\xf5\xff\x00L9\x1a1\xd4\xa6\xach;\x0f9\x91s%\x98T\xa4\xbb2\x976?\x89\x1d\xdb\x80\t#\xbaO\x00]*\x06\xd8\xea:\x9a8ja\xec^4\xfb.K\x8ey"\x93\xb4\x07U(\xf4\x93\xe2k\xa5\xb9\xa7\xc3\xa6\xea\x9d\x1d\xfc\xbb0\x90\x95Lf\xf2"(\xfb\xdc\r\xe8\xfb\x10\xa0?\xc5\x87\xff\x00$\xeaVB\xd4xK\xa8d&lt;\xdd\x02\xac\xd3J\x01\xd5C\x90\x16[\'\xb0P\x1c\xa7\xf7\x18\xaf\xf1L&lt;\xe1\x93\x06=\xc2\xce\xf8u\x00\x9bo\xa6\xf7\x1c\xec\x9ah\xa5\x92\xba\x17H\xc6\x1b6\xd9\x88\x04\x81}\x05\xce\xc2\xe7k\xee\x94\x181\xa0\xb6\x11\x83\x02\x11\x8c\x12\xa5\xc7\x83\x1d\xc9r\x9fKm4\x82\xb7\x1cq@%\t\x02\xe4\x92{\x001\xf9p5+\xf44\xb8\xd8(\x93\xd4\x7f\xc5\xf7C4\x82[\xd9\x7fJ\xa8og\xda\x9cr\xa4\xbc\xe4\x19\xa9\x8d\x01\n\x1e\x82B\x92\xaf\x13\x9fT%I\xff\x006*\xf7\xad\xcf\x89?V\x1dV\xe6\'r\xd6\xa1U\xa4e\x9c\xb6\xa5\xda6O\xa2\xbc\xe3Q]M\xfc\xa5\xd5\xa4\xdeQ&gt;\xa5Gh\xb7\tI\xe3\x12\xfe\xce1\xae\x15\xc7\xb1\xf7R\to;.Z\xd2\x00k\xad\xb9i\xbfx\x8d\xec@6\xd4\\\x02V\xc7\xb4\x8e\x07\xe3~\x16\xe1\x98\xb1I\xa0\x02\x9d\xf6\xccZI{/\xb0{l2\x83\xd4\x12/\xa1\xb161\xb2\x03\x7f5X\x96\xfb\xd2\x94\x90\xa6[K\xaao\xf3\x9b\x15\xf9G\xb0\x1f\xd3\xb7l\x12\x0c\t\tT6Q\xe1\xa4 \xed\xdcy?rq\xd1\x12B\xd8\xdeZ\x179C3\xa4\x8c8\xf3[\x99v\x9bP\xae0\x88\xf9jzb\xd7i3\x1b\x9d\x97\xe6r&lt;9\t=\x8f\xf9\x14\n\x90\xa1\xea\x95+\x8cO\xde\x98s\xa5?T\xf2\xbcZ\xb3\x90\x97\x1a[\x8d\x86\xaa\xd4\xf7\x13\xf8\x91$\x04\xd8\xa4\x8fk\x8f\xb7\xfab\x87\xf6\xa9\x87\x88\xab\xe0\xab\x03\xe2i\x07\xcc\x1e~\x9b.\x80\xf6K\\\xe9p\xe9\xe9\xaf\xf0\x10\xe1\xe4G\xf65N|\xac\xb9"\x90\xe8v3\xaa\tK\xb7\xdba\xfe\xb7\xfe\x84\x7fS|oQj\x11\xfee&amp;E-{\xd4\xaf\xc4N\xdd\xd7\xe7\xd4\x0b[\xef\x7f\\S\xb5M.\x8c\x85tR\xbd\xbd\xa0%w\xb3*+3i\xa9\x83L\x1e\x1e\xe4\xf0\xde\xdf\xc8\x9bw\xb7\xdb\x10\xd7Y\xab\x99j\x8b\xd4q\x9f\x9b\xeaM\xc5\xa1\xe4\x9ajgU\xaa\x92Q\xf8,\x15\xacou\xc2/\xb1(m&amp;\xe7\xb2B\xc9\'\x9cop\x1d+d\xe2\x98K\xf6m\xcf\x95\x85\xfe\x85i\xf1\xe5k\xa3\xe1i\x839\x80&lt;\xee@\xfa\x82S\xc5\x95\xf3-\x0f;\xd0[\xcc\x19b\xbf\x16\xa5\x06B|X\x13\xa0\xc8C\xcc\xba\xd9&lt;\x14-\x04\x85\x8b[\x90q\xd4\x91\x08:\x83\x1aB\xc6\xd7\x13\xb5\xcf-\xd4\x07\xb8\xe3\xb8\xe0\xfe\xdf\\tKAq\xb8\\\xda\xd3\xb0II\x01\xd6%\xae\x9b-\xa4\xa5L8E\x91\xeb\xcf\x06\xfe\xa0\xf7\x07\xdb\n\\\x85\xaa\xd9\xd7L+\xcdfL\x95\x98_\xa6\xcbg\x80\xb6W\xc2\xd3\xfe\x15$\xf0\xa4\xf1\xd8\x8bc\x87x\xcb\x8bq|c\x8a\xe4\xac\x90\x98\xccN-co\xf0\x86\x9b[\xcc\x9b\x93\xd4\xdcm`\xbe\x84\xf0W\x02`x?\x06G\x87\xb4\t\x1b3\x03\xa4u\xbe2\xe05\xea\x00\xd3/@\x01\xdfyS\xa4\xdf\x14*l\xa4\xc7\xa5j\xf6Nq\xb78K\xb5JI\xbaO\xf9\x8b*7\x1f]\xaa?A\xe9\x89M\x93\xb3\xaeT\xd4\n\x139\x9f&amp;W\xd8\xa8\xc1|~\x1c\x88\xcb\n\x17\xf5I\xf5J\x87\xaaM\x88\xf5\x18\xb4\xb8K\x8ba\xe2\x18\x8cR\x0c\xb34\\\x8eN\x1f\xb9\xbe\xbb\x8eW\x0b\x9d\xfd\xa0{=\xaa\xe0\xea\x91,g=;\xc9\rw6\x9d\xc3]\xca\xf6\xd8\xf3\xb1\xd0.\xce\x0c:\xaa\xe14\xddJ\xf5\x89\xa2}-\xd0\xcc\xbdC\xcc\x01\xea\x9b\xcd\x15@\xcb\xf4\xfb92O\xb1\xdb\x7f"o\xfa\xd4@\xf6\xb9\xe3\x15\xa1\xd5\x8f\xc47[\xba\xa1rF\\vJ\xb2\xf6VR\x8f\x87@\xa7&lt;\xaf\xc6H\xecd9\xc1x\xff\x00\x97\x84\x028M\xc5\xf1V\xf1\xdf\x14\x88\x1ap\xdaWw\x8f\xc6G!\xfbG\x89\xe7\xd0i\xcc\xdb\xa2\xbd\x8c{6v#3q\xdcA\x9e\xed\xa6\xf1\xb4\xfe\xa2?Q\xf0\x07\xe1\xeau\xd8\x0b\xc7\xd2\xd1Q\xb2F89\xe9\x9c\xa4h\xc5\xbc\xd8\xf8K{\x89l5\x7f\x15K\xb5\xbc\x96\xf3_\xed\xe9\xdf\x08\x1c(\xdcnn!\xa5n\x11\x7f\xc4\xe7\x19-\xc8\x83pM\xf4\xb0\xdd\xd7\xd2\xd7\xba\xe8.7\xff\x00\xc6\xe9\xb8J\xb1\xf8\xf1\x1f\x83\xc8D\x97\xbe\xad"\xc4\x0bk\x98\xde\xcd\xb6\xb7"\xda\xa6j\x88\xed\x0eNe\x99K\xa13+\xc0K!m"kvP\tY\xbd\xc8\xe0\xf2\xbf\xbf\xbe3\xd4\xa9\xc5\'\xc4KIM\xff\x00RN&gt;\x97PG_\xf9|b\xbc\xb4\xcf\x95\xb9\xcb/\x975\x85\xed}m}\xaf\xc9|u\xc4d\xc2\x9d\x88\xcc\xec0&lt;Sg=\x98\x92\xd9\x83o\xa6l\xba^\xd6\xd96\x9a\xbf\xd4\x14\x0e\x99\xe9\x07;LZ%&gt;\xbd\xcdA\xa5x\xdbU)\xc2?\x98@\x06\xeaU\xb8\x16\x1c\x920\xfb\xf4]\xf19\xd0\xda\x86k\xa6\xe6\x0c\xe5!YjuZ;/\xc8m\xb9\x08v\x14\x85\x00\x02\xbf\x10\x1f\xc1y\x06\xfb\x83\x96\x04\x10\xab\x80\xb1z\xcb\x8e\xe2\x87\x18\x8c\xe1\xed\xff\x00dv{|N\xd9|\t\x16#\xc4\x8b\xe8\xac\xefgU\x92`\xb5-\xac\x93\xfdR\xdd\x8e\xdf\xba4\xefy\x03\xbf;^\xca\xd14\xc3Rt\x7fZ),K\xd3\xadG\xa3\xd5\xa4)\x9f\x11q"\xceio!6\x06\xe5\xb0wp\x08\xe6\xd6\xe4\x1b\xf20\xb6\xca\x9am\x16C\xbe2ZS{\x1b\xfc\xad\xa4\x13\xda\xd6\xfb\xdf\xd7\xeb\x8a\x06h%\x88\x86\xca\xc70\x90\r\x9c\xd2\xd3c\xe0@*\xff\x00l\xb1=\xc4\xc4\xf6\xbc\x02E\xda\xe0\xe6\xdctp$\x15\x8fZkY;D4\xf6Fv\xceU\xf8\xb0b\xb6\xca\xbc\xef&lt;7:\xabp\x84\x007(\xfd\xbb}\xbbQ\x1f\xc4\x8f\\3\xafP9\x81\xed;\xd0yJ\xdf\x9a$)\xda\xe2"\xab\x99,\xf9\x0b(Z\xc7\x1b\x0e\xd2\xab\x03\xc8\x00\xf6U\x8b\x8f\x03\xe05\x93TIT\xc6\xe8ZZ\xc3\xd4\x92\x01\xf4\xb1"\xfd|vP\xe3\x8e \xa3\x83\x0ee3\x9d\xde\xcc\xd78x\x00H\xf27\x00\xdb\xa7\x81M\xafO\xfaO\xd5\xefFN\xa79i\xfe\xacT\xa9\x8eH\x01R)4\xf7\xc2\xe2\xbcm\xd9\xc6\x1c\xdc\xdb\x87\xeaSq\xe8q6\xbap\xeb\x13\xab=R\xcc\xf0\xe8\x1a\x91L\xa6\xb2\xca\x9b\xda\xb9P\xe9\x89m\xd2\xb2.\x07r\x91\xc7&lt;\'\x16\x85&amp;\x1b\x8aa\x84DFf\xf5\xe89\xd9T\xb2bXm}\xde\x0eRyu&gt;*I\xaf\xf8\x9b\xa1\xc9R\x9dR\xe5\xadAN&lt;[\x07u\x80\x00\x10,-`;[\xb5\xfd\xef\x8d\x15\x89,\x0f\xfb\xfa{\xdc(!J\x8c\x92\xe8\xfe@\x05\x7fO\xe7\x8a;\xdao\xb2*\xacR\xa5\xd8\xae\x06\xc0dv\xaf\x88Xf&lt;\xdc\xdd\x86c\xccis\xa8\xb9&amp;\xfd1\xec\x93\xdb]&amp;\x13F\xcc\x1b\x88$!\x8d\xd29M\xdd\x94rk\xeds\x94r:\xd8hl\x02\xde\x8d1\x97\x8e\xf8o\xa1\xcd\x9c,\xa0\xde\xdfq\xe9\xfb\xe1{\xa4\x1d@g\xed\x14\xaf&amp;\xb1\x92\xb3\x03\x91\xca\x94&lt;x\xc4\xeei\xf4\xfb8\x8e\xca\xfb\xf7\x1e\x84c\x9bi\xaa\xab\xb0LDH\xdb\xb2X\xce\xc4X\x824 \x83\xf2 \xf9.\xa1\xc4\xf0\xdc7\x89\xb0\x97@\xfbI\x14\x8d\xdc\x10A\x07PA\x1e\x84\x11\xce\xc4)\xe5\xd3gW\xb9#^\xa8\x8bfj\xda\xa5V\xa1\xb4\x176\x0b\xaf\x8d\xaaM\xc0\xf1\x1b\'\xban@ \xf2\x92E\xfb\x82Lt\x86\x13\xc4\x14X\x9e\x1d\x1dNv\xb4\xb8j\x0b\xadc\xb1\xfa\xed\xe0\xb8\x9f\x88x_\x11\xc0q\x89\xa8KK\xb2\x1d\x08\x1b\x83\xa8?-\xfcU7f\\\xe3\x98smbFh\xce5\xa95\x1a\x84\xd7\x0b\xb2\xe6\xcdx\xb8\xe3\x8a&gt;\xaaR\x8d\xcf\xfbcE\xc9\xf0\x13\x19R\x9f\x94\x86\xdbG*S\x8a\x00\x0f\xe7\x8ep\r\xaa\xaf\xaa\rh/{\xdd`\x05\xcb\x9c\xe2v\x03rI&gt;d\xaf\xa2\x11\xb6\x83\x07\xc3\xee\xe2\xd8\xe2\x89\xb7$\xd9\xadk\x1a5$\xe8\x00\x00o\xa0\x00$Vi\xd5\xcaC!Q\xb2\xba~vBO\x99j\xf2\xa1\x1f^yW\xec-\xf5\xf4\xc2\x12Nlb\xb30\xd4\'\xc9}O(\x10\xb4H\xb7\xf2I\x16\xb0\x1flw\x1f\xb1/e/\xe1\x1a\x7f\xcd\xb1V\x01W \xb3[\xa1\xec\xdaw\x17\x1af&lt;\xed\xb0\xd0\x1dJ\xf9\xad\xfeH{q\x8b\x8f\xab\x06\x07\x82&lt;\x9a\x08\x9dw?Q\xdb&lt;llu\xc8\xddr\x83k\x9b\xb8\x8d\x1aW\x12\xb3\x9b\xa8\xb9j\xbb\xfcZ&amp;\\\xa8Np\xd3\xddk\xc1\xa5\xb2\x16\xe2\x95\xbd\x04\'\xce\xa4\xa4~S\xc9 \xdf\t\xea\xfdg^3\x9cW\x13\x94r\x85/-\xa5I\xfc9Y\x82O\xcdH\x1c\xf7\x0c1f\xd2G\xf9\x9dP\xff\x00)\xc5\xe9R+d\x7fgN\xd1\xaf\xea?\x0bv\xe5\xbb\x8fA\xa0\xeaB\xe5\xfaY)#\x8b4\xce&amp;\xc7\xe1\x1b\x9fS\xa3G\x8e\xa7\xc0\xa6;1\xf4\x7f\x9b\xeb9\xd3\xfe\xaa\xd5\xdc\xc3R\xcc\xef\xf0\n\xddd%\xbd\xb7\xfc\xa9BxB/\xfaR\x00\xf5\xb7\xbf^OD\xb4wR\xeec\xc8\x94vS\xbd\xb0_\xa7\xa4\xed \xff\x00\x8d\xb3\x7f*\x87\xb7c\xe8A\xe4\xad\xb3\x83\xa9\xda]$\x87\xb4\x94\x9b\x97;ry\x8d6\xfe4S\xc7\x8c*\x9c\x1b\x1cc\xb3\x8c\x0b\x06\x8d@\xf1\xb9\xd4\x9b\x8dN\xe7^\xabWH\xb2\xa6\xa7t\xf5\xa8Pu\'L\xeb\x92)y\x92\x94\xff\x00\xfd\xadA\x9b\x87\x12\xab\xf1\xdf\x91p\nT\x95\\\x1b\xed) \x91\x8b\x9b\xe8\'\xe2\x83\x03]tbUkQ(\xd1a\xe7\x8a\x1d\xa1\xd6\xa9\xb0\x97\xb5\xb9\x8a\xb5\xdb\x92\xd2{!\x0b\xe7u\xf8B\x82\xad\xc6\xd1\x84n6\xe0\x99\xeb)bt\r\xef\xb5\xc0_\xfe$\x80o\xe0/\x7f\x01~\xaa\xc1\xe0&gt;8\x86\x96\xb2X\xa7wq\xed&amp;\xdd\x1c\xd1qo\x13kx\x9b&amp;\x0f\xacN\xa8#k.dV\\\x85\x9f\x1b\xcc\x19\x89n\x1f\x96\xa5QW\xe3G\xa7\xa4+\xca\x92\xa1t!)6&lt;\x92\xa5[\xcd\xdf\x08m\x1d\xe9"\x8b\x94i\x8a\xa8\xc9eS\xabs\xf7H\x9d9\xe5\x17\x16\xb7\x0f{\xa8\xf7\xeen{\x9c5P\xd3\xd2\xd0\xd2\xc5\r8\xd21\x94y\xf3&gt;\'\xa9\xeaT\x0e#5N%W$\xd3\x9b\x97\x9b\x9f\xeb\xcb\x90\xf0\xb2YS\xba8\x81\x9ag\xff\x00\x13\xcd\xd5\x17\x92\xdaWf\xe3\xb6\xae;w\xc2\xd7$\xf4\xf9\x96t\xfe\xaa\xdd^\x93-\xc2\xf3g\xf59\xdb\xfeq\x8d\xd7L\xebYiGK\x13\\\x1d\xd3T\xe2\xc6\x81\xe2\xab\xe6\x1co\xdc~"m\xef\x8dGc\xa09f\xd3\xe6O\x07h\xdd\x8dF\x8e\x8aC2\xf1\xdc\xb7O\xad\xa1.\xcf\x0e%\xd0,\x89L\xab\xc3y\xbf\xb2\xc7?\xb1\xb8=\x88#\x82\x9fv|\xfa\rI4\xaa\xfc\xb4\x19\x1e \x11e\x04\xecD\xb4\xff\x00\xf1r\xdd\xd1\xeb\xdd&lt;p9\xef\xdb\x8f\x04\xb2\xbb\x0f\x18\xdd\x1c^\xf6=$\xb0\xd5\xcc?\xa8\xdbr\xd3mw\xb6\xe6\xc3N\x9b\xff\x00\x1ex\xfd\xd8v*x~\xba_u7\xfa\xf3\x1d\x1a\xff\x00\xda/\xb0x\xbe\x9bf\x02\xc2\xe5ue\xe6W\xe9S\x12\xa8\xcbP\xde\xd7$(\xfb\xfd0c\x92s\x16\xe8\xbbM\xb8tR\xb73\x80\xbaf\xea\xd0\x9a\x95M\xdc\x81\xb5IH)&gt;\xd8k3&lt;\xc9Qj\xbf"\xf3\xeaSm,\x02\x9d\xd7\x05E7\xbf&gt;\xc3\x81\x8b\xc7\xd8\x0e\x0f\x1e/\xc7\xd1:[\x11\x08t\x96&lt;\xc8\xb0\x1e\xa0\xb8\x11\xe4\xaa\x1f\xf2\x97\x1c\x9b\x02\xf6Y,p\xdc\x1a\x972"G u7\xf0-ii\xf3\\\xca\xbeVm\xf6\xber9Cn\x16\x82\xf7\xf7&gt;\xe4\xf6\xef\xc7\xdb\t\xd7\x1dj+\xea\x8f=\xab\x94\xa2\xdb\x9b\xe6\xdfk\xdb\xdb\xbf\xd7\x1f@\x9b\xf1Y|\xab\x95\xb7e\xd6a\x97\xa1\xc8H\x10\x9dq\x04\x8d\xa5.*\xe0}\xbdo\xfen\xf8\xd9\xa7\xd260\xf7\x83!\xc4%\x97\x03kJ\x17\xfa\xbe\x97\x07\xff\x00#\xcf\xd3\x1b\x19\xb2\xe8\xb4C\x1a\xfb\xae\x94HR\xdfqq\x16\xf2Ue\x04(\xa9D\xf2y\xb7\xd4}\xff\x00\x96\x15t-+\x80\xe6\xd9\xb2$\x94\xad\xd4\x15\xdd\xb5\x1e\x12;\xfbs\xc7\xff\x00g\x18\xe6\x90\xc7\xb2\xdb\xa6\xa4\xed\x8e\xbc\xbc\xd6\xe6o\xe9\xf7O\xab\x0b\x8fT\xad\xd3\x94\xa7\x8b\xed6\xa7c\xb8R\xa7\x10\xa2\x12\x02\xbd\xedpA\xee-\xc1\xc76\x93\xd3\xb6Y\x97\xa7\x15\xb6\xb2]Jl:km\xbb&gt;\xba\xcb\xd2\x02\x1c\x9c\x12\xd3\xe6:\x1cR\x13\xf8\xa8\x05\x85$\xb6J\x00\x0b*\xba\xc9\x01\x0b\xd8\xb5d\x8e\xa5\xc8v$\x04\xc7\x85a\xd12\xaf\xb5f\x84\x02S\x91\xa3]5\xe4l\x84\xe4i\xc9a\x0bvCiPm\x96\x82P\x94\xa4\x0b\'\xdc\xf2\t\xbf\xd7\x0f46"FlC\x85\x11\x08O!&lt;Z\xdd\xff\x00\xfc\xff\x00\xcfH\xd3\x1clhk\x05\x82\x98\x8d\xd2;W\x9b\x93\xfd\x05\xbc\x82RPS\xc2m\xb4&amp;\xfd\xcf\xb9\xc0\x80\x90\x90\xd9O*yIR\xbe\xc7\x18\x96k\xad\xe9+i\x10\xd2\xb0\x9f*y\xb6\xd1\x8d1\x1dIiK\x017Rw+\xb8\xbd\xb1\xe5\xba\x05\xe8\x95\x9a5\xd6\x80\xc2@\xda\xa4\x9bzZ\xdc\x7f\xa6\x13Uv\xa3f:\xb2\xa8\xd3\xe3!\xe8\xee#\xce\xd3\xe9\xdc\x92\t\xf6\xf7\xe3\xf6\xef\x8f.\x85\x951\xba7\x80A\x04\x10u\x04\x1d\x08&gt;\x07\x9a\xc9\x05C\xe9\xe4l\xb1\x92\xd74\x82\x086 \x8b\x10A\xe4GU\xce\xaa6\x88.\x9a|\x95\xa9\xf4\xc4Yd-\xdf2\x94;\xa4\x92{\x9d\xa4\x02{\x93|\x18\xf9\xb5\xc4\xb4P\xe1\xdcCWK\x1f\xc3\x1c\x8fh\xf2\x0e /\xac&lt;#\x88T\xe2&lt;-EU!\xefI\x13\x1c|\xdc\xd0O\xdd\x7f\xff\xd9'</t>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x00\x00\x00\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x02\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x07\t\x05\x06\n\x04\x01\x03\x02\xff\xc4\x00:\x10\x00\x01\x03\x02\x05\x03\x03\x02\x04\x04\x05\x04\x03\x00\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!\x08\x131\t"AQa\x14#2q\x15B\x81\xa1\n\x16\x91\xb1\xc1$3R\xe1\x18C\xf0\xff\xc4\x00\x1b\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x03\x05\x06\x01\x02\x07\xff\xc4\x00-\x11\x00\x02\x02\x02\x01\x03\x03\x03\x03\x04\x03\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x11!\x121A\x05\x13q"2Q\x14a\x81\x06#\xa1\xb1B\xd1\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xcc\x180`\x840`\xc1\x82\x10\xc1\x83\x18\\\xf3\x9f\xb2^\x9be\xc7\xb3n}\xcdT\xfa55\x8b\x07gT\xa6!\x96\x92O\x81\xb9d\x0b\x9f\x81\xf3\x82\x132T\x07\x04\xe3\xcdP\xaaS\xa9\x10\x9c\xa8U\'\xb5\x1d\x86\x90T\xeb\xcf\xb8\x10\x94\x01\xe4\x92x\x03\t6\xbb\xfa\xe5t\xa9\xa4\xd3\xe6\xd1\xb2\xf4\xa99\x8etU\x10\xa4S\nK`|(\xaf\xc5\xb0\x92u\xbd\xeb#\x99\xfa\x81\xd3#C\\v\xa8\xb4\x89\x92Kq\xa1\xc1\x91\xb8\xc8p$\xac%\xe5\x92=\x80\x0fp\x00\x90T\x01\x1c\x8cCe\xf5V93\xd0G&gt;%\xbaD\xea\xef\xa6\x8a\x8c\xd7i\xb0\xb5\xbf-8\xeb\n)u"\xaa\xd8\t#\xe2\xe4\xdb\x1bT\rK\xc8\x15jJ\xabT\x8c\xebI\x93\x15(*2c\xd4\x9aZ\x00\xfa\x92\x95\x11\x8ec\xe0k\xd6n\xcd\x99\xa2\x04x\xd9\x8a\x9a\xa4K\r0\xe3P\x1d\xec\xa0\xba\x12?$\x02\x01R\x94\xe5\x81\x17&lt;\xac\x03\xb4\x82\x91\xfd\xab\xa8mL\xd3\xe9\xcb\xc9\xb3\xa2\xbb1\x0e\xb6\xa6\x8b\xb4\xf9\xee\xac\xa4\xac\xfe\xbd\xa8#hH6\x00\x00\xab\xa9\x17\x1eRQ\x1e\xa4\xa4\xeb\xa601X\xae\xc1\x9d\'\xe9\xd7R\x9a-\xa9\x92\xe4Rr\xce\xa5Qd\xce\x88\xf2\x9b~\x1bU&amp;\xcb\x97\x06\xd7\t\xbd\xc8\xfb\x8coM\xca\x8e\xef\xfd\xb7Rn.,q\xcc6\x9cj\xe6_\xcdyY\x96\xa1\xa1\x11&amp;\xfe9\xfe\xc4A!E\xf5\xa8\xa1*Z\xbb\x81\xc2\xa0\xe2\x8b\x80\x83d\xa7r\x15\xed\x04\x84\x99\x7fN\xb5O\xa8}!4\x8c\xeb\xa3\x1dEfh\xb5w\xe3\x07\xe4R\xe6f\x05\x87\x1c\xb3\xc4\x94\xad\x97w\xa4\xedG\xb7j\x92\xbb\'j\x80PRq=y\xb5?y\x03Ujw\x13\xa1\xec\x18L\xbd5\xbdM$u;\xdb\xd2=m\xa3\n.z\x8f\x1fr\x7f/\xb6\xcdD\x00I\xda\x9b\x92\xdb\xa0\x02J9\x04\x02RH\xf0\xe6\xe1\xc0C\r\x89\xe2\x180`\xc7a\x0c\x180`\x840`\xc1\x82\x10\xc1\x83\x06\x08C\x06\x0c\x04\xd8\\\xe0\x84\xfc\xdey\xa6\x1b.\xba\xb0\x02E\xce*_\xd7\x93\xad\n&amp;~\x88\xd7L\xd9\x06\xba\x83.\x873\xf8\x9dUQ\x9e%M\xa5(Z\x08XM\xcf)R\xc5\x80*\xe4\x91k\x12%\xcfY/UO\xfe\x15\xe5I\xb9\x17(J[\xd9\xba\xb6\xcb\x91\xe8Q\xd8l\xab\xb2\xad\x87\xf3\x16G\x80&lt;\xdf\xfd\xfcb\x9bt\x94\xd03D*\x8ef\xd6\xdc\xe0\xba\x9dN\xb0\xf9~\xa5R\x91-A\xe5\x1b\x95\x13\xc1)Z\xd4\xa5\\(\x92\x86\x92\x12\x84n\xf7\xdd,\xcc\x91Jk\xc9\x93\xd0\x9dM\xb9\xad\xe7,\xe3\x96\xb2\xeeN\x14\x1aE\x12T9\xd5\x14%\xd7\x7f7\xbc\xeb6_w\xf0\xb6)\xda\x9d\xe0\xa0(\x10\xa5\\4,\x928\x8dk\x1a\x87P\x92\xd0\xcb\xafF1\xd4$\x15\xae;AJJ\x926\xa56\xdf`\xaf\xd3\xb6\xfc\x0f\x93\x7f8\x995!\x19w7\xc1\xfc\x1a\xd6\xd3\xed6\xdb\x93P\xf2$\xb4\x97\x94\xa2\xa4\xb6\xd9t\x05\x0b$]?\x00\xda\xc7\xe4\x8cG\xaf\xd1r\xb6J\x9f\x16K5x\xb5\xd9jq\x0b,G\x8cm\x18\x04\xadWq\xc3\xb57\xba\t\x00%W\x00\x9d\xc0\x8bc&gt;\xf9J\x06\xdaX\xad\x0e[\x89\xfb\xe4Jef\x9b\xa5K\xafK\x80\xfa\xddv\x01b\x14\x97YIP.:\\S\xa1\x00\x15\x05\xac #\x93\xb5H_?\xa8\x03\x84\xfe;V\xcb\xf9~\x9a\xb7\x1bfs\xefGT\x98\xcf\xc8\x98P#\xba\x8d\x8e\xa1\xc0\xb5\xacm\xe2\xe9*M\xaf\xee\t"\xd6\xc6\xc7\x96\xab\xf5\xca\xb3\xac\xe5j\xa6Q\xab.\x9c\xedm\x89\x92\x95\x02\tu\xc7\x18\x0e\x97\x16\xa3\xdb\x02\xf6\x0bZ\xb9P\x04\xd8\x9f\x04\x1fF\xa0d\xcaVm\xaa?6\x99X\x83La\xc6\x16\xd7\xf0\xda\x9c\xc0\xcbQ\xd4\xa0P\xa3\xbd\xc3\xec;\x8a\x88\x1b@J\x96\x08\xf1\xb4\xc6.\xaf{&amp;t\xd7j\x8d\x016\xed?\xca:A\xab9a\x9a6T\xafT?\xcc\xd5\x9aCo2\xa4%)pT\x19\xb2\x96\xc9^\xf0\x95\x12\x90\xe6\xdb\x94\x95-\x03q\xdc\xe8Sr6\xa8\xe9\xfeh\xd3\x88\xb4\xdc\xd9\x02\x8e\xda)\x8cv\xaa\r\xcanSm\xa1N\xecm\xbd\x8bZ\xf9\x0f-`\xb3\xcf\xb5Ke+\xbaGp\x15\xf6\x93\xa5Tl\x8b\x1dR(9\xf6\xaej\xaa)\\\x06c0\xb4\xa5&amp;\xf6J\xce\xe2\x02\x07\x8d\xa7j\xf9\x04\x83\xe0\x86oI\xf5R\xb5\xa8:v\xbd=\xd4\xfa\xfb\x11\xabI\x8c\xa6\x11=-][\\RI\x0e\x14\x82\x82\x85-(K\x8d(\x15\\\xb6\xb0\x14@\x08\xf4\xb9\x15\xb3hN\x9c{u\xb2&amp;[F\xfa\x8b\x7f\'fX\x9a\xd3\tUjsqQ&amp;}\nK\xae\x84\xbf\x11\xe6\x1fi\xb7\xa3\x90\xf1\xb8\xb3\x8e%\tme%}\xd4\\\x82H\x17\x01\xd0?\xaa\x16\x9auOJ\xa6d\xac\xeb2-\x177\xc8\x8c\x15\x1a2\xdfHn\xa2\x90T\x92\xa4\r\xc4\xa1\xc0\xa4)*l\x93e%@\x12R@\xa5\xcc\xbf\xa4\x13\xeb\xb9v\xb5\xa5\x0e\xd6D%\xbb!\xc9Q\xe6G\x96\x85!\x85\x96\xcb\x81\xfd\x81D\xa4\x14\xb2\x14P7\xb6\xb1\xb8\x82\x16@:6X\x9d\xaa\xdaaOE6\xab\x9b\xe9t\xe7\xf2\xeehfW\xf9\x8e5Q\xc8\xcaa\x01m]V\xba\xc0\x8e\xb2\xa6\xd4\xa5\xb6\x92\x83\xf9n%.$,*\xdb\x13)\x80\xd7\x88\x8d\xd4\xe8\xfe\xf3\xa8\xfe\x141\xf4\x008\x18K=&amp;\xfdA3WS\x19M\xdd&amp;\xd6\xfa\xcd\nvm\xa4GJ\xe9\xd9\x8b/M\x0fB\xcc\x11B\x12K\xad\x93\xca\\M\xc8RT\x02\xbd\xa4\x91\xc1\xc3\xa4\xa5\x04\xe2\xddX0\xd8\x8a\x10A\xd4\xfb\x83\x06\x0cz\x9c\x86\x0c\x180B\x180`\xc1\x08b3\xea\xef\xa8\xfc\x9d\xd2wO\x99\x97]s\xbc\xd6\xd9\x87B\xa7-\xe4%\xc5\xdb\xba\xed\xbd\x88\x1fr\xabbL\xc5\x1f\xff\x00\x8a\xeb\xa9\xedL\x9b\x9c\xb2WH\xf9E\xe4\xb5@j\x10\xaeV\xdan^\xc5\xd4$\xa9\xce\xdb,\x1e\r\x92\x91u\xde\xe3\xe4\\^\xe2;\x1b\xa1\x0bOH:\x9bR\xbd\xba\x8a\xd5\xddP\xeb\x0b\\\xebz\xa3\xa8\xcfT\xb3\x05b\xa7P\x06+0\x9d\x05\xaa{\nRv\xb06\xac\x05%\\\\\xdc\x8ff\xd5\x0f\x16\xf7G\xe9/?\xd456\x15\x12\xb4\xa7b\xf6\xd9\x8f\xdc\x86\xdb+\x90\xb5\xfb\x12^#aPRK\x80\x95Y@\'\x8d\xde,\x98\xff\x00\xa3\xf90\x15\xaa\xd4\xaa%-r\\T\x05\x99\xd2\x1c\x8e\xf9\xba\x16\x08S\x8f\xa9\xcb\xabaN\xd1\xb4|X\x90\x9b\xfb\x17e\xd9\x0bJ\x9a\xd6\xca\x82+lLU;\xb3\x17\xb3H[C\x86\x92\xa4\x90T\x01\'qU\xeeT\xad\xc4\xdf\xe9\xb4#5\x93{\xd8N\xfb\xcb\\Z\x81m\xc8s6t\xcf\x07(\xd1hC0\x16%\xd6\xb3%AL.\x01XW\xe0\xa06\x86\xd2\x14,J\\\x1b\xb6\x02\x01 \xac)A_\x98@\xf1dN\x97\xf4\xef3\xe5\xba\xad\x16\x97Zi\xaa\xcc\t(u\x91&amp;*\xae\xc3\x88\xde\x8b8\xd0]\xd4\x85{\x92\xa5\x02\x15e\x10\x92\nA\x0c\x84\xcd\x1c\x97\x943Q\x9d\xae\x99\xfa\x1c\x88\xa5\xa6\x12%\xc8\x0b))e\xce\xe3i&amp;\xe9B6\xa8\'\xf9y\xf7\xdc\xd8\xab\x10\xfe\\\xcb\x0e\xd5z\xad\x9f\x9c\xf4\xa1\xd3:\x975.\x19+owgbv\xa17\x07\x82\xa2\xb4\x05\\\x02\x08\x0b\xbd\x8f\x18\xac\xb5\x81\x00\x11\xcfi{N8,O\x8dM\xcbN:h\xa9OfD\xe8\x94\x8c\xa8\xc4\x04+c\x8bjG\xe2\x9dRP,\xa0\x90\x19Al\x9b\x91rn\r\x8d\x8d\xb9\x8e\xb5\x1b\xd3V\x16w\xccN\xe6hU\x99\x01\x0exh/m\xad\x7f\x03\x80o\xf7\x1f&gt;\x06\x1dm\x1a\xc9\xee\xbdAK\xb5*K,\xcajK\xa1.69RR\xe2\x92\x91s{\xf0\x90\x0f\xd6\xd7\xf9\xc6yu\x0c\x99P\xcc/Q\x935+\x9a\x94]q\xfbdp8\xe0\xda\xdc[\xeb\x8b\n\xf0\xebj\x812\x1f\xaf\xdc=#q\x1c\xca&gt;\x99\x102b\xda\xa8F\xa9!M\x8eJXA\x06\xdc\x90\x05\x8f\xc5\xedo\xe9\x89*\x91\xd1\x86D\x90\xfa]\x98\xa7\xdd[\x89\xd8\xa4\xa8&amp;\xca\x04\xfe\x92?\x7f\xef\x86R\xbf\x10!M\xa1\x00\x0bs\xb4\x01\xe3\x18\xd8\xb1^\x12\xcb\xc9\x16!WI\x07\xc6&lt;\x1cz\xd5\xc6\xa4\xc2\xc65\xf2&amp;\xa9\x96}=r\x0e`\x97\x1d\x15J\x03o\xa9\t\x05\x8e\xf8$$\xde\xf7$\x9b\xdc\x1eG\x83\xfd\xb0\x9az\x83\xf4\x90t\x1bXc\xb7\xa65\x85\xb7\x0ef\xd8\x95d8\x95:\x89}\xd5+skk\xc2\x92H\x16"\xcaB\xd6\xda\x92\xa4($\x8bN\xd3\xfc\xe2\xfc\x14w\xa57\xb9\x05\xb4\xedPO \xf8\xe6\xdf\xb6\x13\x8fR\x8aEey\xba\x9f\x9c\xa9\xb2\x10P\xcd]\xb5\xad\x87\x01\x01\xf6\xee\n\x92ln8\x1e~\xb6\xc5\x91T\xae\xae\xb5\x1c\xcag.\xf6\x15i\tt\x85\x9a\xd7\xd2\xae\xb6\xe5\xfc\xe3\x90\xddj\x13\xb3\xe5"}.S\xef\x14!r\x12\xa7\x9cv\x9d%ns\xb4\x12\xf3}\xc5mHS\xcb]\xd2\x87T\x13~z-\xab\x19\x7fZ\xf4\xda\x99\xa8\xf9l)\x0c\xd4\x1b=\xd8\xce\xff\x00\xdc\x8c\xf2\x14P\xe3+\x1f\nB\xc1I\xfd\xaf\xf3\x8eb\xe9\x1dSd\x9c\x8f\x9e\xaa\xf92l\xf9\xee&amp;\x13\xeeTh1\x16\x84\xadl\x95\xb1c\xdbqW&gt;[Xq\xbb[\xd8\xd1\xba\xca\xac\xdd\xba\xfa4\xf5J\xf30\xf2\xfeI~x\x91\x973\xc4@\xa8N\x9b\x8f\xc3\xd5ZB\x90\xe5\x87\xc2\\\rm\xfb\xa8$\xdc\x9d\xc4\xb7\x87\x7fQ\xe9?\xf8\xca\xcb\xab\xe9\xe6Y^\x0c\x00\xdc_\x06,\xa2\xf0\xc1\x83\x06\x08C\x06\x0c\x18!?\x97\x14\x12\x82\xa3\xf01\xcb/\xf8\x8b\xb5\xdb2U\xfdZ\xab\xea\x9c\xd4\xd4@\xa1\xaa4VPRA-2\x84\xa8\xad?Tn \xfd\r\x88\xbf\x9cu2\xfaJ\xdaR\x01\xb1)68\xe5\'\xfcCR*\x12}O\xb5\x0f\xb2\xa6\x17PjX\xa52\x14\xc1Z\\Om\x1c\x04\x84\x9fw\xe6\xf9\'\xe9\xf4\xc2\xf9?d\xf6\x87F@\xfd\x16\xeb\x1c|\x87Z\x95G\x97!\x01\x15;9-\xd6\xd4v\xae\xde\x13\xb3\x84\x9f\x9b\x128\xdc~\xa4\x1b|\xe8c6\xaf7\xd1\x9b\xa9\xc7eA\xb4.\xc8+]\xcd\x8d\xcf?~qH\xfd7\xe9\x9ed\x93\xae\x14\xcd=\xa90\xb6\xe6\xc8u&gt;\xd2\x85\x0b\xa0\\\xee\xe4\x0fi\x02\xe1^\x08 \x8b\xe2\xfc\xbad\xd2\x96\xf4wK ASj\xef\x06{\x8f~\xe4x\xfe\xf8\xcd\xe4/\xf7\xf8\xed4\x1e\x9fXz\xba\x8c\x9f\xa9\x1a{\x96\xf3\xa3\x055\xdaS2\x9b\x02\xcb\x0f$\x10\x13\xe4\xf2|c\xda\xfd\'FZBh\xd0\xdb\xa6\xb6c\'cqa\xbc\x94m\x03\xe2\xc9&lt;aZ\xcdz\xd9\xad\xb9\xf2\xb4\xeeJ\xc85\x04\xd2 \xc6_\xfd\\\x8e\xf1m+\xf8 \x91\xcf\x8f\x8b\xe2$\xd6\xed\x17\xea\x06\xb1\x08\xd5\xf2\xafT4Z\x0c\xb6\tXmq\xc9R\x8f\xd7\xb9\xba\xff\x00\xdb\xfeq\xe8]^\xb4\x14\x1f\x9e#\xa6\xb7\xea\xd7V\xa3\xf4\xeb\xd9:\x90\x90\xdd*:\x1a\x04X\x14r\x05\xbc\x01\xcf\x1f\xd3\x1a\xd8FU\x8fZ\x93.\x0cXl\xbe\xf2\xc9y\xe4\xa1!K$y\'\xe7\xc0\x1f\xd3\x15\x1b\x98:\xae\xf5\x0c\xe9\xc33\xa6\x1es\xce\xecW\xa8\xc3\x84\xceeA\xf6]M\xfco \x94\x9f&gt;N\x1en\x93\xf5\x9b0k\x8e\x8f\xc4\xce\xa9\x86\xb5&gt;\xf2\x15\xf8\xb4\xb7{4\xb1\xe4\x02\x07\x03\x8e/\xf5\xc7\x06j\x97\xe8\xd6\xa3\t\x8c\xc9_Y1\x88w\xf8c\xcc\xa9\xf5Ml\xda\xe3\x93c\xc7\xfe\xad\x8f\x03\x0b\xa7\xf7K\x89}%$\xfe\xa1\x84\x83\xac\x8e\xb7s\xa7O!\xca6Z\x8b\xdd\x9c\xeb\x8a-\xb6\xfb\x85  \x01ca\xe4\x92O\xfab%\xd1\xce\xb9\xbdCu\x8aS\xb1r\x86\x93\xa6Tc\xc2$\x94\x86[E\xcf\x1f\x98\xb3s\xe0\xf8\xc4G%Y\xf4\x04\xe3\x82\x8b\xc4\xb6\xbc\x99\xf8W!\xb8\x1b|*\xea\xb9O\xc8\x03\xe7\x0b\x07_\xb5(T\xc3\n\xb2\xb6R\xefm\xe2\xb4!g\xdamk\x0b\x1e&gt;\xb8\x89t\xf7\xa8\xfe\xae4\x931\xc4\xcd:\x9fEBb\x07\x02+\rF_q\xa2\xdf\xd3\x9f\x04\x03{\x8e.&gt;\x97\xc6\xeb\xd6UQ\xae\xa0zz{=df\x8e\xd6\x18/\x08\xe0~b=\x97 \xfe\xc7\xfd\xfep\xdb^-\xc7*\xbc\x11+\x1e\x8d[\xb3\xe6T\x9fY\x99p\xb1\xac0\xb3\xfeK\xa8\xa5B{\xdbeFZACN\xa9Cu\x8f\x8b\x13\xb8\x90mn-\xe2\xf8p\xbd%\xba\xc9\xce\x19gS\xb2\x16\x99JnR\xc4\x0c\xfe\xd3n\t\xb7\xde\xc0L\xa4*\xe9\x17\xb2@[n\x02\x91\xf2\xe1\'\x91|%\x95z\xab\xf5\xc9\xd5(\xb3`H\x92\xf2IJc\xb0\xd3\x80\x85\x12\x16\x08\xb0P6P\x06\xdex\xf8\xf2\'\x8e\x81+Y~\x93\xa90s\xa9CM\xd4hU\x18\xb3?\x0f)e\xb5J\xda\xeaW\xc1\xff\x00\xc6\xd7\n&lt;\x80\x12\x0f7\x18\xe5n\xc1\x94\xf6\xed*\xdd\x19\x98\x8d\xf1:\xc4\xc1\x8c\x1e\x9cgz^\xa5i\xfd\x13Q(\x88Za\xd7i1\xe7\xc6K\x9f\xa9(y\xb4\xb8\x01\xfb\x80\xab\x1f\xdb\x19\xcci\x87i_\x0c\x180`\x840`\xc1\x82\x13\xe5\xc0\x16\xfac\x95\x1fZ\xcc\xaa\xe4\xdfS=Z\xcd.\xa5R\xa79\x99dw\xe1GqE\xf0\xdaJ\x10\xdb\x89H\xfd@\xa6\xe0\xdb\x91a\xf5\xc7U\xabP\x00\xdb\xfa\xe3\x9c\x8e\xbe\xab\xfd\x19k\xb6\xbag\x9a\x06\xa2C\x91E\xcf\xf5\xda\xd3\xd2\xd1\x98\x94\xe3\x8d\xa0\xb0\xf2\xca\x98l\x12\xb56\x10\x96\x8b`Y(QRO\x91pk=J\xd5\xaa\x90I\xd6\xcc\xb1\xf4\xdc;s,n\x81\xbe\x91\xb3\xf1!\xcfHm#F\xb2uf\xf6r\xceQ\x0b\xcc\xd0\xb2\xf9*\x8d&amp;z\x9e\xfc;\xa1\xd4\xa5\xa1\xefR\xaeH\x06\xe0[\x91\xcd\x8f\x18\xb8*\xe6G\xa8\xcf\xca\xae\xb3E\x1d\xb7T\xc9\r\xa3i\x166#\x82\x06+\xa3\xd2;"K\xc8\x1a\x9d\x9c\xde\x9c\xfb\xae3\x16\x02b7!\xd5\xeeS\xfb^IIR\x8f+V\xd2\x92\x0f6\x167\xe4b\xcft\x9f4\xe5\xc7\xd3\xf8j\xb2\xc7t\x0b6I\xb8\xb6(\xd5\xd5\xcf\xd4{\xcb\xbcj\xde\xba\xce\x87h\x82u?\xd3G]5\x9ac\xf0\xf2\x02\xa0P\xa8hp\x97\xa4\xcb\xac\x16\x1f\x9c\xe1\xf0TZ\x0bRR&lt;\xf07{|\x8f\x18Eu?\xa4\x9e\xbe"\xea\x13-=\x9a$H\x8b)\x81\xff\x00S\x04\xc7{w\xb7\xdc\x97?\xfb=\xaa\x04\xfe`&amp;\xd6\xf9$\x0e\x823\xa5.\x83_\xa58\xc2\xc8q\xb2\x93\xff\x00a@\x92-\xf4&lt;\x1f\xeb\x85\xcf8h\x02k\xf5\x93+.R^).s\xbe\x9e\xdaE\xcd\xf9\xde-o\xdf\x0c\xd5ZRK\x01\xd5\xbf\xcc\xeb\xab_\xa0\xe4\xae\xbc\x89S\xd9sD5\xce\x91\x9f\x9d\xcat\xf8S\xdc\xa7\xb8\xb6Y[\xebh\x86V\xa7\nS\xb9\xc6\x80\xdb\xc2\x96\tR\x00)\x06\xe4\x04\xa5DZ\x7fEzF\xbd\x0b\xe9z\x83\x94\xa7\xd3R\xcc\x97\x92\xf3\xd2\x8aM\xeeT\xea\xd4\x07\x1c~\x95\x01\xc62\x14\x8e\x96 d\xf2\xdea\xaf\xa9-(\xba\x0f\xe1[]\xc1\xb7 (\xdb\xdd\xcd\xcf\xda\xf8\x92\xf5\x02\x96\xfe[\xa2\xc4\x8d\x1eGr9d\x06\x94\x84\xd9)?6\xb7\x9f\xf7\xc2\xc3\x18\xb5\x85\xc7\x12\xd3\xac:\x85\x1d\xa5P\xfa\xa3e\xac\xf7\x98z\xa9\xa8H\xcb\x94\xc4\xbb\xf8*c\t\x83\x15\t\xde\xa7\x14R\xea\xca\xc2\x7fO\x01\xbd\xb7Q\x00\xabjE\xc9\x00\xae\x935\xaf\xadM \xa1\xc4\xaee\xfc\xb5-\xb8\xd2\xfd\xad\xbbQ\x930-$*\xca\tKKm\xab\xda\xc7\xf4\x9b\x83\xc16\xc5\xbdj\x9e\x8cN\xaf\xd5\xda\xcdQ\x02\x11Tz/% \x05Hd\x90JI\xfa\\n\x1f\xfb\xc6\xad\'L\x94`\x98\xe6\x96\xa8R\x1cN\xd7J\n\xd6\x85\xa6\xfe\tB\x82\xad~ma\x89k\xa9)n\xa7]\xc4\xaeSme\x11\xb4w\xde$\xfa\x05\xd5\xf7V\x0cF\x8auCK\xe4f\x88O\xb0\x1c\xaa\xb1\x168q\xd8\xad*\xdb\x8d\x90\x90\xa4\xed\x06\xe4,+\xe9\xbc\x1e0\xf3t\xaf\x1b.\xe6J=n\x8b\x0e\x96\xb4Q\xa5\xc5\x0f5\x1d\xf4\x14\xdd\x0bM\xc0\x1f[\xdc\x03cq\xcf\xd3\x19="\xd2h\x99\t\xd5M\x8d\x1e\x1bg~\xed\xf1\xe2\x14\x15q\xc8QQQ#\xcf\xce%m.\xcb\x11X\xadTsR\xe8\xb0\x92\xc3m+qLT\x81s\xf2x\xe6\xff\x00\x7f\xae;R/\xbd\xb5\xec|E\xefV\x15\xe8\xf3\xaf?\x99E&gt;\xa3]5\xce\xe9\xfb\xaa\xd9\xf9|V\x90\xc5*\xa2\xca\xeaP$\x8d\xcd8\x90Vn\x84\xabj\x86\xe1\xcf\xb4\x10\x08\xdbk\x12\x06=\x9d\x1dQs\xeex\x984\xe7)\xc7\xad\xd4\x9f\xadNm\x881`Dst\x85)D%\xc3\xdb\xfdd\x95(\x10\xa5\x02\xa0\xa2,\x0f!\xe1\xf5a\xd0z\x0e\xad\xebNPrdF\xbf\x03P\x82\xfb.&lt;\x12\x0f`!N,\xd8\\\x10Uv\xc6\xef\t\x17\xf1q\x86\x7f\xd0:\x95\xd1\xceS\xd6\xa9Zi\xa4\x99Y\xd9\x15\xbae)\xe6*Uj\xc4K\xc8n\xa2\xda\xd4\xbb\xb6V\x90\xa4\x02\xd0y$\x0e\x07i\x16\xbd\xd4\xa2\xe2\xfb-p\xac\x9d\x13\xdb\xf7\x95\x06\x8c\x85Sr\xa9*\xbd\xff\x00n\xc2Z\x0fL9_;d\xae\x9e\xf2fQ\xd4\x8e\xc0\xae\xd3r\xe4H\xf54\xc6@J\x10\xeaZ\x00\xa0\x01\xc7\xb4X\x1bqpq\xbf`\x00\x0f\x181{*\xc9\xd9\xdc0`\xc1\x82r\x180`\xc1\t\xfc,Y\x1b~N(\xaf4i\x8e\x9be\xda.\xa2g\xbdL\xd1\x1a&gt;s{45\n\x04Z5Q\'cib\x18\x08t89B\xc9yF\xe9 \x8bq\xcf8\xbdE))\x1e|\x0f8\xac=H\xd3\x8a\x0ee\x95\x99t\x9a\x1ac\xb92.r\xaa0\x96\x0b\xc9ea\xa4\xcbt4E\xc8\xdcC\x05\xab\xfd\x01\x17\xf8\xc57\xacTm\xa1u\xe0\xcd/\xf4\xd6B\xd3}\x8a\xc3a\x87\xfa1&lt;\xe8Es\xe8\x999\x19\xa2\xbfHE$ML\xe2P\x01\x044\x89n\xb6\x06\xf5\x9d\xce\x84\xa5\x96\xd2Ue\x1fh\xe6\xc9 2\xf4\xaa\xfdF\x11 \xcb\t\n\xe1\x03u\xac&gt;1\x88\xd4]\'\xa2d7\xb2\xeeU\xa4\xd1d\xc9\x8dN\x80\x88\xf1\xa2\x00R\x90C\xae:\xe7p&amp;\xca+%n\x0b\x80B\xbd\xc4\xf1q\x8f5*\xb3\x1a\xa7\x05p?\x0e\xe2_\x8c\xefh%m\x84)IH\xb0V\xdf\xbf\x06\xdf\x17\xc6r\xd4\xe9@7\xc8\x96\xf587\xb1\x03\x89:\xe9\x9dQ/0\xa7+\x13\x96\xa5l\xb2S\xe7\xfd\xf1\xb6\xcc\xcc\xd4&lt;\xbb\tO\xa5\xe4]-\xddi*\xe4~\xf8\x84h\xb5d\xb5Mj\x03\xef\x05*\xd7\x17$\xdf\x8f\x18\xcc\xd4+Tf\xa0w3\x04\xb5\xa1\x84$oJPJ\x9c\x17\xb1\xf1\xe0}\xcd\x87\x1f8s\x1a\xd2+\x0b\x0bB\x06\xea1y\xf5\x1f\xf53\xa4\xf4\xed\x93\xa4T\x9c\xa7="\xa0\xfbJn\x95\x01\xb4\xd9JAPOp\x0f\x8b\x9b\xf2~\x83\x0b\x1e\x9a\xfa\xc0g\x0c\xd1\x90\xa9\xd4\xb7\xe3T\xd8\x9a\xe2\x96\xa9\xf0\xe6\x8d\xca\x8e\xb4\xee\xbd\x88\xfdH\xd9e^\xc0\x8eA\x1cr\xe0ui\xa6\x9a\t\xadt\xeauR\xaf\x90Z\x91R\xa4%J\xa5&gt;\xa7\x94\x8b7t\x95{A\xb2\xc7\xe96W\x8f&lt;s\x84\xfb_:Pz~\xa85L\xca9z\x0cj\xd4x\xed\x916\x9f\tM~!\xa5\xac!hq6\x00\xb8/\xc2\xac\r\xbc\x9f\x81\xed\xd9\xc0\xef&amp;g\xad\x95z\x06\xb49\x1f\x93\xf9\x9b\xc7H\x9e\xadT\x8dt\xd6Z\x9eFz\rE2`\xa8\xa2\x04\xaa\x93e\x1d\xfe\xd8 \x14\xa3\x92\x94(&amp;\xdbM\x8d\x88\xe0\x1c:\xf0\xb3\r.\xbd\x0cLZ\x1bHu!\xc0\x7f\xf1\xbf6\x07\x15\xc7\xa6:?\xa7\xdaY\xa9\xcd\xe6*\xc6]f-u\xb2\xe3a\xd6\x8a\x92\xb5\x94\x84\x82\x92\t\x16\xf9\xe4\x8b\xfdI\xf2\\M6\xd4j-b\x01\x8bL\x96\xd2\xd6\x8b\x07\x12\x85\x83\xb2\xf7\xe3\x8f"\xe1V\xfd\x8e&lt;]cx?\xc4\xea**\xa9=\xfc\xc9y2\xc1\x1d\xaa\x7fox\x04\xd9\xce\x02\xad\xf7\xc6\x06\xb3\xad\x93\x16NQ\x85\xdbj\xca\xdb %v\x0b\xb7\xfa_\xeb\x8cMN\xab24#\xbd\xc5\x14*\xe7rnH\x1f\xbf\xc0\xfb\xe3P\xa6@T\x8c\xc6*\x0f\xa8]N\x02\x80\x14\x7fP\xf9\xbf\xfab \xf6(^\x93\xc9\xef!\xbf\xdb`f\xa1\xd7\x16\xa0F\xc9/d\xc9\xf3\xb2Rs\x032+\xcb\x8d*;\x8b[A1\xd4\xce\xe5$8\x93d\xb8\x14\x84\xa9$\xdc\xf0\xaf#u\xe6\xefL\x1d9Ek\xd4\xaaN\xafi\xfeX]&gt;\x83]\xcb\xc8\xac\xba7\x05\x16-\x1d\xe8\xcaAPH\n\xba\xc8\x17\xb7\xf3\x7fLE\xbdG\xe4,\xdd\xa9yr\x06@\xa3\xd1\xdbv}.\xb2\xe5jA\xee\x84\xa8\xc7m\xae\xd2\xb6\x95\x9frI*\xb0;\x7fE\xac\t\xb6\x1f\x0fH\xfd:\x8bI\xa4V\xb3\x90\xa76\xd1n\x97\n\x03\x0bj\xc4#z\x9c\x90\xe3{\x87\x9b$\xc7\xbf\xdc\xe1\xecj,\xb7=I?H\xe7\xf9\x11;\xf2+\xc6\xf4gQ\xf7?\x1f\xe4s\xfe#\xa4\x05\x85\xb0`\xc1\x8d&lt;\xc7C\x06\x0c\x18!\x0c\x180`\x84\xf9pSs\x84k\xab\r=\xa2i?TOf\x8a\xcd9-\xd23\x9b\x7f\xc4i3\xd4HLZ\xaa\x19\xecKj\xe3\x90\\e-\xba\x07\xc9B\xfe\x9c&lt;\xa3i\x16\x18\x84\xba\xf5\xd0%u\x07\xd3\xfdS-\xd2\xdeS\x15Xc\xf1T\xa9m\x9b-\x87\x90\tJ\xd2~\x0f\xfc\x13\xf5\xc2\xf95{\xb4\x95\x1d\xfcFq/\xfd=\xe1\xbcy\xf8\x88\xdfRT*\x02\xa6\xe5\xd9t\x89\xf2d\xb2\xf2\xddZ\x10\xd3\xbd\xdd\xa5\xb6\x17\xb7\xe6\xe8@\x05d\xab\xc0\xdb\xcf\xc6#Zl\xe91\xebn\xa1\xc9\xe8;\x96\x15\x05\x9d\xb6\'\xdc\x10O\x9e\x12=\x87\xe4\x11s\xe7\x0b\x9fL\x15}y\xcc\xb5\xac\xc9\x985{T\x13Q\x89L\xab=Ik\xda\xe2\x19GmE\x05\xc5\x1b\\\x11u\x0e8\x05\x17\xf7x\xc4\xba\xdet\x87+4\xb6\xb5H\x92\xa6\xe3\xa9N\xc7*\x8e\xa0\x96[J\x8a\x1b\x01k?\x05L\x80\r\x80\xb8\x1f8\xc8d\x06$u\rMuOWY\xe8m\x8f\xcfi%G\xab!\xa5J\x95\x16C\xb6\x84\x87\x1c\'v\xd4\x9b\x0b\xda\xc4\xf8\xbf\x8c+Z\xed\xea\x07\x91\xb2\xfdeOWe\xcah\xb3(\xc7\xfc\x1bo\x05w\x10\x087\xdb\xb7u\x94S\xfay\xfdV\xfa\xe2U\xaa\xe6\xc4\xd7)\xf2V\xe0m\xa8\x1f\x84\x08\x94\xd2\x8f\xba\xce\'r\x05\xc5\xbe\t\xf1c\xc7 \x1e1\x14R\xe8\xfaw\x96\xf3\xd4\xec\xc7\xfc\x16:\xa6%6[\xcbF\xe2E\xc6\xe7\x13\xb8_\xf5\xa8\x0b\x8f\xbf\xd3\x11\x84n\x0e\xe7E\x8a\xee\x013\x0c\xf7T]k\xf54\xb4\xd1\xbay\xd1\xd8\xf9F\x8a\xb6\x92\xcf\xf9\xa7&lt;\xb2\x98\xee,|\xa9\xb48\x95*\xd7\xbd\x94\x94\x9e\x00\xe58\xf7M\xd2~\xbd\xa8\xf1Q\x1e\xb3\xd5\xa6P\xa8\xd4\x08\xd8f\xc9\xab:\xb9\x10\x91rHm\xc2\x85*\xc6\xd6&gt;\xe4\xf2\x00\xfb\xe3\xd7\x9c\xf3\x05j\xb4\xc3\x89\xc8\xd4\xb599\xb4\x87\xa2w\xae\xb6\x81\xb1\xb5\xd2\x01\x04\x11\x7f\xbf\xd0aX\xd4\xac\xaf\xd4\x15_5*mER\x99\x98\xb5\xa7\xb9\x1e%;o\x08\xb1\t!\xb4\xf8\xda\x10\x05\xcd\xf8\xe6\xf8\x9c9a\xae\x9d\x9f\x93-\x06@\xc7\x1aE\xd8\xfe$\xdf\x99r\x7fZ\xf9\x11\x973\r^\xa9\x95\xb5N$r\xa3.\x9a\x8a\x82URH \x15\x16\x83\x81+W\x03\xc0R\xaf\xe0$\xf8\xc7\x9fK\xfa\xa5\xd3\x95\xe7\x055M\xa7\xcf\xa2&gt;\x12\x18\xa8\xd2&amp;\xb2\xa6^\x86\xe7\x956\xb4\xaa\xcaIO\x9b\x1f \x8ck\x9a&gt;\xce\xb1dI}\xec\xd4\xf3\xaf\xd2\xaa+\n\x98%\x02V\x1d$+w\x06\xe1G\x9e\t\xf96\xc6\xc9\xaf\xd9;K\xf3\xfb\x11sL6[j\xafIJO\xf1\x055\xb9il(+aX\xe4&amp;\xf7\xe3\xc5\xce#f\x07\x8dh\xca\xfc\xab\xba\xfe\xb3\xc1\x8c\xa6R\xd4\x88\x95\\\xb6\xd4\xb7j\n\x93u+`I\xdc\x05\x8f76\xbf\xc7\xc7\xd7\x19\x0c\xbd\x98Z\xacf\xb6\xd1)\xa7[\x8e\x15\xf9I$\xa1+W6\x05A@\xda\xe9\x1f\xbf\x8ey\xc41\xa4\xb9\xbe\x96\xd6S\x87\x97\xe32\x8e\xca\xa1\xac:\xb0\xaf}\xc96\xe4|\xf2x\xf8\xbf\xdb\x136@\xafF\x93SN_\x9d\x97\xd7!\xc7]\x1274\xad\x8el\xe7\xc0\xdc\x9d\xa7\x82H\x06\xe3\x92&gt;\x06;Pf\xb0n&amp;\xd6\xaf\xb4L\x93r\xa4\xe8y\x92Um\xb8\x19\x95b\xa0\x86\xd7H\x89\x12\x1b\xa1N:V\x82\xda\xb6!\x02\xdd\xd5&lt;\xa2\x908\xb9&gt;~qe=#hK]&lt;h}/O\xddm(\x9cJ\xa5\xd56\xbb\xbc\t\x0eZ\xe8\xdd\xfc\xfb\x10\x947\xbb\xf9\xbb{\xbeq\x0b\xf4i\xe9K\xa3\xbd3\xe76\xb5\xaavc\xaf\xd7s$\xa4\t\x8eG\xacJ\x0b\x8d\nc\x89\xdc\xea\xd0\x8b]D-J\xdaT}\xbeG \x10\xda\xa4\x0b\x02?\xa65x\x98\xe6\xa5\xdbw\x99\xdc\xdc\xb1~\x95\x06\x94\x7f\xb9\xf7\x06\x0c\x18r#\x0c\x180`\x840`\xc1\x82\x13\xe1\xfa\xdf\t\xa7S\x1e\xbc\x1e\x97=5f\x9c\xc1\xa5z\x8d\xd4\xed99\x92\x8d\xde\x8d.\x99\n\x9b*H\x12R\x8b\xf6{\x8d\xb6[*\xb9\x00\xd9\\\x1f8\x88\xbdy\xfdX\xa2t\xc3\xa7\xeft\xa9\xa0y\xd1\r\xea&gt;d\x8cSV\x9b\x05\xe0\\\xa1AP\xe4\xdc~\x87\xdc\x06\xc9\x1eR\x9b\xab\xe4c\x9e\x86tt\xebf\xbc\xe5\x0c\x8e\xedP\x99\x95\xac\xd3\x11\x95\xbf \x15\xa9\xd7\x1cx\x05\x02U\xe4\xd9D\xdf\xc7\x17&lt;\x0cHja\x8e\xd6\x9e\xc2/\xfa\x85\xfdR\xd2;\x99q\xda\t\xa1T|\xf1\xd2j\xe5T\x90\xec9\xd9\x80\xcd\xadD\x91b;+\x98\\\x90\x08\xb8\xf1g\xb6\xf1\xf0&gt;p\xbei~\xa3\xd5\x11P\x9b\x92\xb3|\xa8\xf4\xea\x8d\x1c\xaa&lt;\xd8\xaf\x92\xb0\xa7\xbb\x89I\x04\xdc) \x04\x12\x0f7\x04rop\xf0\xd3!\xc7\xc99\x12\x97\x92\x19p\xa5\xaae=\xa8\x16\xf9=\xa4\x04s\xf7;qZ\x1e\xa1:e\x99r\x06\xa6\xcc\xd5\xdc\xac\xd2\xae\xe4}\x93c0\x94\x86\xe4\x92lV\xa2\r\xf9\n\xdex\'\xddo\xb8\xc4\xde}\xd7\xe2n\x1d\rT\x8dI\x8a\xbe\xf4Y\x11\xa1\xa5\x9a\xc3]\xba\x85Em\xc9@^\xd5\xa4%\xa0\x9by\xfdEA6\'\xe8O\xd2\xf9\xfd1\xd3l\x93P\x86\xcd5\xaacj\x08\xdb\x1dKq\xd5\x82\xda7,\xa9+\xf6\x92\xa0\xa3\xe4\x8f\xa8\xfa\xdcV\xfc\xee\xbc3xv4\x97\xd4\x05F$\x8b\x87\x14\xab\xb2l\x08\xdb\xb0$\x90\x08$\\\xa8\xff\x00\xa8\xc4\xfb\xd2\xe7\xa8\x06]r\xac\xfc\n\xfc\xd8M\xbd&gt;&lt;\xa7K\x12T\x84\xa5\xf5\x06\x94\xabo-\x92\x85\x12\r\x82\x8aE\x89\x07rT\xa0Y\xa6\x82\xbc\x11+\x1f-@\xd0\x8e\x9d"\x97H\xc8UYt\x82\x86\xd8ZYvK\x85\xe6\xcaZh\x02\x94\xa17\xdc\x01I\xfb\xed&lt;\x1e=\xd71\x9e\xabk&gt;\\\xa4T\x9b\x99O\x8fg\x83\x008\xebO)d\xbb\xb57&gt;\xe2M\xc8I\x00|\xdf\xebkj\x1a\xf3\xd4^P\xa9~.m\n\xbfL\x12&amp;\xaaBV\xc3\x0e/s\xc9L\x87T\x95\xa1a6P\x08Kj\x1eE\x9d\x04\xf2\xd8(Uk\xda\xd6\xedc5\xba\xdag?\xd8K\x88%[\xca\\\xed\xed\x07\xdc@\xf3m\xdc\xdf\xff\x00\x1f\x1c\xe3\xb7uU\xf6\x08\xd5\x19\xfb_\xa8\xc7\x12\x9bZ\x9f\xa9Y6e9\xf9\xb2\xc4\x96\x18K\x8c\x94\xc7;T\xe07\xb1Y\x1eT\x12-r\x00\xe4\x9b\x81\x8f\xde\xbd\xd3\xf6]\xcbYbT\x9c\xd14\xb0\\\xa5\xb8T\xcb\xe3\x9d\xe0\xddm\x94\xda\xeb6\xfb\x11a~x8\x8a\xbaj\xd5\x8a\xddk;\xd3\x1a\xcc\x90d\xc5\xa7N|S\x90\xa5$\xba\x86\x88\xed\xf1\xdbO.\x0b$\xa7m\x8f\xb8\xf3\xf1\x89o\xa8\xede\xc9Y&amp;\x82\xc9\xcd\xd3\x9b\x9c\xb6\x1a*\xa7\xb0\x93u-h\xee\x8d\xd76\xdcOkj\x94n=\xf6\xb06Q\x9a\xaa\x85\xb4\xec\x8ebw\xe6\xf5\xdb\xc1\xe2jyV\x0bYC0Kn`K\xabRR#\xa47`\xa2\n\x0e\xeb\xdcx\x03\xfb\xdb\xf7t\xbd,\xf4\x9e&gt;\xb5uWM\xa8\xc5\xa6%\xea6YaU\n\xaa\x96\x06\xce\x14\x92\xca8&amp;\xe1N%\'j\xadp/kb\xb8\xb4wS+:\xa5Zk/e\xc7\\q\xde\xfaK\xee\x02V\x88\xec\x90\xa0\x92\xb5\x80-\xb5?7\xf8\xe0\x1b\x01\x8e\x83=.z]\xa2\xf4\xd9\xd2\xc5\t\xc7!\x03_\xcd\x10\xda\xaa\xd7%\xac{\xd6\xa7S\xb9\xa6\xf9\xe4\x046R-\xf0J\xb0zu\x02\xcb\xcb\xf8Y\x1eVAZz\x07\x98\xc8\xe0\xc1\x83\x1a)Q\x0c\x180`\x840`\xc1\x82\x13\xe0\xddo\x18\x88\xba\xd8\xea\xebN\xfa(\xd0\n\xd6\xb6\xea\x04\xe6\xc1\x89\x1c\xb7H\xa7o\x1d\xc9\xf2\xd5\xc3m y#q\x05G\xe1 \x9c/\x9e\xa3\xde\xbd]\x11\xfa{&amp;FG\x91\x9a?\xcf\x9a\x8c["\x1eE\xca\x8f%\xe7\x1b_\xc1\x94\xf0\xba#\'\xeb{\xab\x8e\x13\x8a&amp;\xf5\x1f\xf5\x80\xea\x17\xd4\x1b&gt;$\xea\xd3\x10\xe84\xfa2\x92\x98\x19N\x92\xe2\xd4\xc4 \xbb,\x15,\xdf\xb8\xe1\xb7*\xfb[\xe9\x89\xa9\xa4\xda\xdf\xb4S+)iC\xd3\xcb~$Y\xd4\xa6\xb3\x0c\xfd\xab9\x8fY\xf3UA\xd9y\x8f3V_\x9fR|\xa9N+s\x8a*\xb5\xcf\t\x1e\x00\xf2l\x065\r,\xd5\xa8\xda}\xab\x19_X\x9b\x80\xe4\xa5\xe5\x8c\xc7\n\xad\xf8d\x1b)\xe1\x1d\xf4:R/\xc5\xc8I\x1c\xf1\xce5:\xcdej\x92\x1c\x90\x90\xe2\x15\xcd\xc7\xdf\xff\x00w\xc6\xafR\xabK\xa3\xcfP\x89\x05\xe56\xa3pG\x08\xdap\xf5\xdf]f\xb1\xdag\xf1\xac\xb8d\xfb\xa4\xf2\x0e\xe7C\xb5l\xf1G\xcfy&gt;\x0e\x7f\xc9\xb3\x116\x99Z\x84\xcc\x98\xf3"/zV\xdb\x88\nm\xe0G\xf2\x94\x94\xf3\xf7\xfb\xe1}\xeaF\x80\xceq\xca\xd2\xe2Jgq1\xf6\xb9\xb4[\x8f\xd8\xf3\xf2x\xbf\xc9\xfbb\x1b\xf4j\xeb\x01\x19\xd7I\xdf\xe9\xdf2\xd4\x02\xea\x19U\x1b\xa9!\xf7\xbd\xd2\xa9\x8e,\x80\xdaA7=\x95\x1e\xd9\xb0\x01(S rM\x99\x8dS\xa6\xd3\x11Hu\xf0\x82c\x91\xc3\xaa\x1c\xb2~\x8a r&gt;\x8a&lt;s\xcf8\xf9\xbeEVQ{+x3\xecX\xce\xb9\x98K`\xecD\xa6\xce\xa6\xf4yy\x136\xb9*\x14u\x88\xaf\xa8\x94\x85\x01\xec77\x04\x8f\xff\x00s\x88\x9c\xa1\xf6\\D\x98r\x16\xd3\xad8\x16\xd3\x8d\xa8\x82\x85\x03pA\x1e1b]Ih\x9as\x0b3\x1c\x91M\\\x84\xaa\xfb\x02\xaeU~M\xc7?\x16\xf1\xf1a\x84GR2\x82\xb2\xa6br\x9e\x84\x94\x00/n\x7f\xe7\x0f\xe2\xdd\xd4:I\xe6Qf\xe2\xfbm1\xc3P\xb5\x111\xfbNf\x87\xdd\xda\xca\x9bmN[rR\xa1b7\x0ey\x16\x07\xeba\xf4\xc7\xe3\x1f=j\x12$\x99\x8b\xae\xa9N^\xe5DX\x9e-\xf09\xff\x00\x9c~l\xc7.\x1b\x01\x7f\xdb\x19\x8a\x06Q~\xaa\xfa[&gt;\xd0O\xba\xff\x00L4\xf6*.\xccDT[\x89\xbdi.\xaek\xf3\xec\xa5\xbc\x92P$Epl\x9c\x94\xaf{b\xe0\xedJ\xb7]$X\xf2\x08U\x94nO\x04JZk\xd3\x96\xa6\xea&lt;\xa7*:\xb9\x9e\'\xbf\x16R\x96\xb7\xe3\xb3!h/(\x9d\xc7z\x81\xe1$\x9b\x94\x81b@\xbf\xc66\xde\x944\x86\x91G\xa5\xb1.\\d\x05?\xeeXU\xed\xc0P\x1c}n\xa3\xfe\x98`dP!\xc2-1\n\x0e\xd2\x05\x94\x10-\x7f\x1f\x1c~\xf8\xa9|\xcb\x9c\x90\xa7B?G\xa7\xa6\xc1#fn\x9d*h}\x1e\xbb\x9ah\xbaW\xa6\xd46!\xb1&gt;|Zkm\xb0,T\xf4\x87\x10\xc0qJ\xe5J)\xdd\xb8\x92o\xb58\xe8N\x95N\x87E\xa6G\xa5Ah!\x88\xac!\x96P?\x95\t\x01)\x1f\xe8\x06)[\xd2\xce\xb7\xa6Y\x17\xac]&lt;\xa6j=Y\xa8\xee\xd6jr\x93F\x0f\xb9\xb5\x0eKLU\x86\x93\xcf\x9f\xcc[v\xf8\xdf\xb3\xe9\xc5\xd9\x0b\x11\x8b\xefL\xac\xa6?Q\xf3\xccO\xd4Y}\xfe\x85\xec8\x9fp`\xfd\xf0b\xce!\x0c\x180`\x840`\xc1\x82\x13\x87\xfc\x94\x83/Y\xe3\xd0\xa4)N-\xb9\xaaT\xd9\x0f,\xadr\x14\x91\xc9Q&lt;\x9b\xdb\xc9\xc6\xbf\x9ckSW\xaa\xf9\x89\x1d\xe5Y\xe7\xca\xd5~yI\xb0\xfe\xca80a\xf6\xfb\x07\xcc\xa1\x1c\xde~?\xeaf\xe9\x12\x05J\x80\xda_\'qN\xed\xc1 s|z\'S\xdb\x91O1_*(@\xdc\x00Y\x1f\x180bu\xed\x14\xff\x00\x91\x9f4oSsf\x83\xeaM\x1fT4\xfer\x99\x99M\x90]\r)gd\x86\x8an\xe3+\xf3\xedZII\xb7#\x82\x08 \x11rY\x1bS\x18\xd4}?\xa3\xe6\xea|W\x99j\xadK\x8fQ\x8a\x87\xc8\x0bm\xb7[\x0b\t6&amp;\xca\x01V\xe0\x91\xe7\xce\x0c\x18\xc7\xfa\xea(\xb8\x1dO\xa3\xff\x00I\xbb\x9cF\x04\xf1"Ma\x8cb\xb1f{`;\x1dN\xfe\x1f\xb6\x0bN\'\xb4\xb5\xaa\xe3\xf9\x15d\x11\xed\xf6\xf8\xf6\x8b\xdc%}A\xe9\xad+82s\x95!}\x85-\xad\xe5\xb7\x876\xfaq\x7f\xae\x0c\x18\xa5\xa0\x9ftK\x1c\xc1\xc4\x82\xe1@Dk$\x9b\x80\xbbq\x89\'J\xa1C\x91Za\xb7\xda\xbf\xf3&amp;\xc3\xc1\xbf\xf7\xc1\x83\x0fe}\x92\xa6\xaf\xba7\xda[\r\xb8r\xe1\xd3b\x00P\x12\x12\x14\xa4\xd8\xde\xd7\xbd\xb9\xbf)\xfe\xf8\x94\x18\xdc\xfdQ\xa7\xdcuG\xba\xbeJ\xd4U\x7f\x16\xe0\x9b\x0f\xe9\x83\x06)\xd3\xb4\xbb\xa0q\x14\x8dm\xea#;\x0e\xbd\xaa\x11\xb2\xa5I\xfa{Y\x0e\x97\x025\x10\xb6\xe1IL\x80\xea\x1fT\x8b\\\x80\xb2\xe3\xc5;\x87;\x1b@\xfbc\xa6\x1fK\xbe\xb1k}mt\xa9M\xd5L\xd9E\x10\xeb1e\x1auUm\x91\xdb\x92\xea\x1bB\xfb\xc9\x03\xf4\xeeJ\xd3q\xf0\xad\xd6\xe2\xd80cy\x8e\x00\xc1\xab\xe2cn$\xe6[\xf3\x18\xec\x180c\xd4\xf3\x0c\x180`\x840`\xc1\x82\x13\xff\xd9'</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>802281</v>
-      </c>
-      <c r="B22" t="n">
-        <v>72016</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Raphael Laruccia</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xdb\x00C\x00\x03\x02\x02\x02\x02\x02\x03\x02\x02\x02\x03\x03\x03\x03\x04\x06\x04\x04\x04\x04\x04\x08\x06\x06\x05\x06\t\x08\n\n\t\x08\t\t\n\x0c\x0f\x0c\n\x0b\x0e\x0b\t\t\r\x11\r\x0e\x0f\x10\x10\x11\x10\n\x0c\x12\x13\x12\x10\x13\x0f\x10\x10\x10\xff\xdb\x00C\x01\x03\x03\x03\x04\x03\x04\x08\x04\x04\x08\x10\x0b\t\x0b\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\x10\xff\xc0\x00\x11\x08\x00\x93\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x00\x06\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x05\x06\x07\x01\x04\x08\t\n\xff\xc4\x00A\x10\x00\x01\x03\x03\x03\x03\x02\x04\x04\x03\x04\x07\t\x00\x00\x00\x01\x02\x03\x04\x00\x05\x11\x06\x12!\x071A\x13Q\x08"aq\x142\x81\x91\x15#Rr\xa1\xb1\xc1\t\x163Bc\x92\xd1$4Cb\x83\xa2\xb2\xe1\xf0\xff\xc4\x00\x1a\x01\x00\x02\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\xff\xc4\x00*\x11\x00\x02\x02\x01\x04\x02\x02\x01\x03\x05\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x11\x04\x12!1\x05\x13AQ"\x14\x152#aq\x81\x91\xb1\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xf54\x1c\xd4w \x054\xf2\x00\xa4\xd3\xceP\x02\xa4\x00\xa0\x01@\x15\x87]\xbe \xf4\x17@4\xdbw\xfd`\xfb\x8f=!e\xb8\x90c-\x1e\xbb\xea\x1d\xf0\x95\x11\xf2\x8f*\xec&gt;\xf8\xaa\xe7=\xbc.Yd*s&lt;\xf7\xd6_\xe9%\xeb\xbe\xb3\xbc\xad:\x11\xa8zn\xdc\xa5\xecj&lt;X\x89\x92\xf6\xdc\xe0\x158\xe2N\xe3\xf6\t\x14\xb6NK2x\xff\x00\x05\xaa\x10K\x92%\xd5?\x88\x8e\xa9\xea\x1bS6N\xa4\xea\xc9WD8=v\xe1\xa8\xb6\x141\xfdA\xbc~\x99\x1cR\xf5\xbf\x97\x92i\xc5t\x86\xcd\x0f\xd4\xa96\xab#B\x16\xf6\xddm\xe4\xe2R\xd2\xb6\xccU(\xe4\x05-#\t\x07\xc6A\x19\xf2;\xd4eV9C\xdc\x9f\x0c\xed.\x83\xfcj2\x87\xff\x00\xd5\x1e\xb3\xccCk\x1bD+\xca\x13\x90\xbe?\xd9\xbc\x07;\xbd\x94\x07&lt;g\xde\x88\\\x97\x0c\xa6ue\xf0u\xdd\xb2\xebn\xbd\xc1f\xe7i\x9a\xcc\xb8\x92\x13\xb9\xa7\x9aXRT&gt;\x84U\xe9\xa6\xb2\x8aZk\xb3j\x98\x81@\x02\x80\x05\x00\n\x00\x14\x00(\x00\xa1@U@\x1b\xbdJ- \x05I4\xc0\x14\xc0\x14\x01Zu\xf7\xafZ?\xe1\xf3C\xb9\xac5Z\x94\xfb\xae\xa8\xb1\x02\x03N%.\xcb\x7fi;F\x7f*\x00\x19R\xf0v\x8f\x04\x90\x0ce,\x13\xae\x0eo\x07\x8b=r\xf8\x80\xd4]S\xd6S\xb5\xde\xb3\x98\xb9\x13.+Q\x87\x0bySP\xa3\xe4\xecm!]\x92;\x81\xf5\xc9\x194B\xbf\x9f\x92\xec\xed\xe1\x15{\x1a\xf6R\x1d\xf5\xd0\xeb\x8d+\xfe\x19\xc1\x00x\x1cqZv\x15\xfb\x7f\xb0\xfd\x0b\xaa\x92\x04Wb\x16\xa4\xba\x87\x93\x87\x0b\xce\x07\x02\xbft\xd4=L\x14\xd3%\xf6\x8e\xb9i\x8bV\x99r\xd16\xd2\xeb\xebq\xb5\xb6\x95\xb0\xeaT[\xcf\x80\t\n@\xed\x90\tI\xf2*.\xa6\xd1%$\x99\xa5o\xd7\xb6\xcb\xf9D$\xdd_/\x04\x842\x95\x8d\xbe\xa2\x7f\xa4\xe7\x80\xa1T\xce\xa4\x91g\xb13\xbb&gt;\x01&gt;\'\xa4C\xd5\xe8\xe8\xde\xb5\xba\x04\xc5\xbbG\xc5\xa1np?\x16\xd0\xfc\x99\xcf\xe6q\x1c}Ki\xc79\xccb\xb6\x7f\x82\xbb\x12k(\xf4V\xae(\x05\x00\n\x00\x14\x00(\x00P\x00\xa0\rt\xb9\x93U\x00\xa0_\x8a\x000_\xbd4\x85\x93;\x85O!\x93\x0e8\x86\x9bS\xae(%\x08\x05JQ8\x00\x0e\xe4\xd3\xc8\xfb&lt;O\xf8\xc4\xf8\x84\xbau\xc7\xaa\xd79Qf8,\xd0\x1er\xd7jmD\x0c0\x95+\x07h\xe3*\'q\xf3\x8c\x02MW\x05\xb9\xeef\x84\xb6\xae\x0eG\xbdOT\xfb\xbb\xee \x92\x9d\xdbB\xbd\xf1\xc7\xf9V\xd8\xae\n\xe5\xc8x\xfaz\xf1q\xe2*W\xcf\x80*\x12\xd4S\x07\x892\xe8h\xed\x9a\xcaC\xdd\xa7\xa5\x1a\xa2{\xa1(\x82\xe1\'\xb0\xdaj\x8f\xd7S\x8e\xcb\xff\x00l\xbd\xfc\x0e\xea\xe8\x96\xb8l\xe5\x16\xa7\xfb\xf1\x96\xcd%\xaf\xd3\xfd\x92\xfd\xaa\xe1T\xf4O\\\xb5!\xb4=o[\nP\xcaTN\x00\xff\x00\xa5\x1f\xae\xa2\\dq\xf1\x97E\xe7\x04\xa7E]\xb5\x15\x9bQ\xdb\xed\x13\xe2\xbe\xd5\xd6\x0c\xc6\xd5\x15\xf6\xf3\xbc\x90x)\xc7$\x83\xcf\x1e\xd4\xe6\x95\x90n,\xa2\xc8J\xa7\x89#\xdd\xfe\x9c\xdd\xae\xf7\xad-\x02e\xf9)E\xc9\xb8\xed\xb19\xb0A\xd9))\x1e\xa88\xe3;\x8f8\xf3J\x0f+\x93$\xbb%\x15" \xa0\x01@\x02\x80\x05\x00\n\x00oB\x8e\xeeMT\x02\xc9Y4\x00}\xe7\x81M\x11a\x81\xe34\xc4G:\x9c\xd4\xb9=6\xd5\x0c@I2\\\xb3MK@=\xe8\x9d\xc5\x95\x81\xf3\xff\x00\xbb\xf7\xf1M\xac\xac\x16E\xe1\xa6|\xef\\\xeej\xb7]\xdcI*Qm\xd2\x15\x9e\xe7\xc95dxE\xf9\xc9\xa3\xa64\x9c\xcb\xf4\x947\x14\x1c\x17y*\x1e\x01\xa8\xea5\n\x88\xe5\x9at\xbaw{\xe0\xe8\xbd\x11\xa1\xa1\xdb\xdb@\xd8\x1cW\x04\x92;\x9a\xf2\xda\xadK\x94\x8f]\xa7\xd3\xc6\xb8\xa2\xf5\xd2:b\x1aT\xd3\xe2#y\x1c\xf6\xe2\xb2+[4\xca)&amp;\xcb~&amp;\x97bTU!6\xa0\xe6\xdf\x9b?.0G\xd6\xaf\xcb(\xc8\xc5\xa9t\xac\x17\x1cm\x0e\xc1J\x14\x9c\x83\x84y\x15\\\xecq/\xae*\\\x94\xefYzB\xd8\xb3C\xd6\xd6t\x96\xa5\xd9\x1fK\xce\x14\x0f\x99l\xa9XW\xecpG\xeb]/\x1d\xac\x93\x9e\xd9tq\xfc\xae\x99m\xdd\x14z9\xf0\xc3u\x9d\x7f\xe9T\x1b\xec\xd5\x87\x05\xc5\xcf\xc40\xe8X&gt;\xab~\x93h\xdc|\x85nB\xb7\x03\xd9Y\xc6F\rw\xa2\xb0\x8f%g\xf2e\xb7L\x80(\x00P\x00\xa0\x01@\x02\x80\x1a\x12\xbej\xa0\x14J\xcex4\x00\xa8s\'\x8f\x02\x9a"\xc5\x02\xce)\x88\xd4\xbeBE\xde\xc5p\xb4\xb8\tL\xd8\x8fF!=\xf0\xb4\x14\xf1\xfb\xd3\xc98\xbeO\x9d\xfb\x9d\x81\xf3\xac\xa4\xdb^k\x0e5!\xd6\x96\x9d\xbc\xe5*)?\xe1D\xe6\xa1\x1c\x9b+\xad\xcd\xe0\xb8\xf4\x86\x8f\xb5\xd9\x90\xd2b\xc7Sd\xa5%[\x8ey\xfdk\x87\xaa\xbev\xf2\xcfI\xa3\xa65$\x92-\x8b\x15\x99\xa2\x84\x96\xc8\xcf\x90|W"\xce\xf9;pK\x05\xb3\xa2 6?;\xad)\t\xf9H&gt;3\xe6\x94{\t\xfd\x16\xa5\xb1,\xc1}C!M\x16\xd0\x9c\x95v8\xe2\xb5\xa4\x8cM\x08\xde\xadv\xf9\xb2\x0b\xed\xba\x12\x9d\xa0\x01\x9f&gt;x\xfb\xe6\xa9\xba\x19\xe4\xba\xa9\xe3\x829|\xd3\xe6\xe1i\xb8\xdaV\x8d\xcd\xcba\xc6@\xfe\xd2q\xfet\xf4\x8aP\xb3v\n\xb5\xd8\x9dx//\x81\xa4&gt;\xc7B\x9b\xb7&lt;0\xa8\x17\x99\xd1\x87|\xf0\xa4\x9e\x7f\xe6=\xab\xd5\xd5-\xd1L\xf0\xb7E\xc2xgBU\xa5@\xa0\x01@\x02\x80\x05\x00\n\x00e\x07\x9a\xa8\x03\x8f\xbe(\x03%X4\xd1\x16)\xeay\xc1\xa7\x94!V\xdc\t\xda\xa3\xd8\x10i\xa1\xa3\xc5\x0e\xafh\xa1\xa6\xbe+u\xae\x9fv:\xb6\xb1\xa8f\xa9\xb0\xa1\x82[ue\xd4+\xed\x85\x83Y\xae\xfe\'SI\x97$oj7\xd1\xa5-B\xee\xfcu\xbeJ\x82\x1ba?\x99J\xfb\xd7&gt;4{\xa5\xb78;\x7f\xa8T\xad\xc5k\'\xae\x9a\xee\xd8\xeb\xaeG\xb6\xfa-\x1c\x94\xb7\xe8\xe7\x8fm\xc7\xda\xb5\xd5\xe3(\x9a\xc4\x99\x8e~[Q\x17\x95\x1e\x07m-\xf1U\xaa\x92\xeaX\x9bfK@\xa8nu*P8\xfbv\xaa.\xf1P\x8f1e\xf4\xf9\x99O\x89\xc4\xbb^\xeb\x86\xa1\x1a&gt;U\xe2$i.!\r\x92\x14\x94)]\xbc\xd6H\xd1)Oi\xd3\x96\xa2\x11\xaf{)\x99\xbf\x15]a\xb9\xcbv\r\x91m4\xc2\x01qk\x1c)\r\x0eT\xa2\xaf\x00w\'\xc5u\xea\xf1\xd4\xa8\xe6\\\xb3\xcf\xdf\xe5\xac\xdc\xd40\x91b\xf4\x97\xab}I\x8bwa\xe5_\xbf\x8a3!\xc4\x87\xa10\xd3\xf3V\xe6\xe3\x8c\x04\xa9\x00d\xf8\xc2\x87\xde\x9d\xfaj\x9cv\xc1a\x90\xa3Yk\xcb\x93\xc9\xdc\xff\x00\x0c\xdf\x10=-\xb2\xde\xa6\xf4^\xfb&gt;\xe7\xa7\xf5\x8d\xdfPH\x95o\xb3\xdd\xac\x92\xe1&lt;\xf3o4\x87\x10F\xf6\xf6\x8d\xc1\x0b#$d\x0e;\x8a\xb6\xaa\xe5\\0\xcen\xa6\xcfe\x9b\x8e\xaf\x07#5iI\x85+n3\xe6\x93bo\x06A\xcd\x08\x10)\x8c\x14\x00(\x01\x8bv*\xa0\x0c\x85\xe3\xcd\x00d\xa8\x13\x93RDX\xa0X\x1eh\xc0d$\x89\x91\xa2GrT\xc9\r\xb0\xc3\x08.8\xeb\x8a\tB\x12\x06J\x89&lt;\x00\x07\x9a:\x0c6\xcf=\xbe+4\x1e\x87\xd4\x1f\x10\xd6\x8e\xad\xda\xba\x97\xa4cXn\xf1\x18\x17\t\x9f\xc4[x\x89,\x7f%M\xa5\xa6\x89Z\xd6\xa4\x16\xc8\xe0\x01\xb5D\x91\x8a\xa6{l\xe3\'F\x99J\x9eZ\xe4\xe2\x8dc\xa9\xf5\x86\xa2\xd6\x97\xdd=.\xe4\xa6\xec\xf6\x99\x0e\xfe\x0c\xc3` \xcbg\xd5R[p-@\x9d\xaaJA\xcf\x1d\xfcQ\x1a\xea\x8f\xe4\x89{\xae\xb1\xe2K\x04\x02N\x9c\xb9\\^J\xbdu\x17\x94\xe6\xd2\x97\xdd;B\x7f\xabr\x89\'\xea*\xe8[\x1a\xfbEV\xd3e\x8d`\xb0\xa2i\'\xed\xb1\x96\xd6\x9f\x96\xa6Y\xf5\x10\xe1\x90\x87\x16\xdb\xca \x10R\x08 l\xe78 \xe0\x8c\x83T\xce\xf5&gt;\tF\x89C\x96:t\xa7\xe1\xd3^u\xae\xc5\xaa\xafV\x1e\xa3&amp;*\xed\x82G\xa1\x06B\xe4-W\x05\xb4w\x14e*\tN\xee\xd9 \xf29\xa4\xf5T\xd3%\x16\xb9f\x8a\xb4\x17j\xabvn\xcaLbk\xa7\x08m\xab|\x9bt\xe91\xdd\x98\xc3rZ(k*\t\xdb\xf3\'\x92\x02\x86IJ\x87\xdc\x1a\xb9\xea\x92\xe4\xcbv\x86SN\x12E\xe7\xd1\x9e\x91\xa2f\xa4\xb6\xddm\x11\x1d\x82\xdc/I\x0bk\xb8{`\x1b\x9cP\x04\x84\xa8\x91\xd8q\xda\xb1_\xa9Rf\x8d&amp;\x8dS\xdfGZ\xf4g\xe1\xebB\xc2\xf8\x8b\xd1\xba\xd2\\\xbb\xbe\xa4\xba\xb5\xa3gj\xa7f\xdd\xe5\x17\x96\xd5\xc2L\xd6Z\x8e\xa4\x8e\x00\x08o\xf1(H9\xc63\xc9\x00\x8e\x9cf\xddxF\x0b\xf2\xa6\xd7\xd1\xda\xe0`\x01\xedQ*0\xa0\x0f\x04dRbbAJe\xc0\x93\xcbJ\xf2O)?\xf4\xa4\x98\x93\x16\xa9\x12\x05\x00\n\x00\x8e\x05\xfb\x8a\xa8\x03\xa5Y\x1cP\x01\x82\xbd\xe8\xc8\xb0\x1b\x7f\xda\xa4Dj\xd5\xfa~&amp;\xaf\xd2W\x9d+-\t[7\x8b|\x88+IV\x07\xf3\x1b)\x1c\xf8\xc1 \xe7\xe9Q\x9c\\\xe2\xe2\x8b*\x9b\xaejk\xe1\x9eB"+6\x0b\xc4f5u\xb0\xc7\xbc[\xae\n\x8d-\xb7\x1b\xfeb\x9e\x8e\xbc,/\x8e\x08\xdb\xdf\xb7\x15\xe7\xe9\x94\xaa\x9e\x1f\xc1\xef\xf5\xd1\xaa\xc8\xab \x96\x1f&amp;\xdfQlV\xd75T+\xc1N\xd6gf\x1b\xea\'\xb2]\xc2\x9b\'\xff\x00Q!9\xff\x00\x89[}\x9c`\xe3\xaa\x94\xe4\xa5\xf0\'\x17\xa7V\x1c\x85\xb4\xfa\x14\xe0?(&gt;\xf5J\xbf+\x96k\x8e\x96"z\xc2\xcfo\xd3v\t3\xdc^\xdf\xe5\x9c\xb8FG\xd0${\x93\xc0\x1eI\xa8W\')%\x90\xba\x98B-\xa4X\x7f\x07V\xc9\xbaj44K\xd9\r\xd9I_\xae\xdb\xa7i\x0e/*Q?PU\xfd\xd5\rl\xf3\xa8\xdd\xf4k\xd0\xd5\xe9\xd1\xa8\xfc\xbeGi\x9aF\xcd\xa2\xf5-\xd3F\xea\xbbyv\xc8\xf4\xf7\xae\x96\x89\xe9ijLVd-N-\x85)\x00\x94mp\xabj\xbf)J\xb6\xe4\x14\xe0\xd8\xa6\xec\xe9\x99\xfdn\x13m\xae\t\xa5\x9bWYt\x8c5\xc1\xb15\r[\xd3\xc4\x84;\xea-@\x8e\xc1(\xca\x89\xfb\n~\xa9\xe7,\x8d\x9b\x1a\xe3\xff\x00\x0e\x99\xf8R\x856\xe9o\xba\xeb\xdb\xb6\x11!\xd8\xb0t\xf4\x18\xe4\x02\xb6 \xc4\x0e:\x14\xbcv[\x8fJye&gt;\x12\x1b\x04\xe4+\x1d\xba\xe4\xb6\xe1&lt;\xe0\xf2z\xc5\x8b[\xc62_\xfb\x95\xefS\xc9\x90\x1b\x89\xf3I\x81\x83\x83\xc2\x86A\xe0\x8a@a\xa2\xa4\xff\x00-c\xb7\xe5&gt;\xe3\xeb\xf5\xa0\x052h\x1eA\x93RA\x924\x0f=\xea\xb2B\xc9 $r(\x00\xabXI8\xef\x8ai\t\xb0\xa5\xdc\x01\x8adB\xa5\xee\xfb\x8ei\xa1\xa3\x86\xfe;z\x198jX\x9dj\xd2m)-Ki\xd8W\xa6P\x8c\x82\xf6\xcf\xe5\xbeq\xd8\xad)\xc1?\xd4\xd8\xfe\xaa\xe5\xeat\xef~\xf4w\xfcn\xb1\xce\xa7\xa7\x9b\xeb\xa3\x98"\xdf"\xeak\x0f\xe1\xa7\x04;"0\xfc;\xc8)\xf9V\x8f\x1c{\x11Yg\x94\xcd\xd4\xcda \xd0\x0b\x9e\xaa\x94\xab\xbd\xcd\xb2x\x18}*?\xba\x90O\xf7\xd2\x95\x89v\x8d\x91\xaa2\xe9\xbf\xfa5\xf5\x02\x0cH\xd6\xa8\xd7\x17S!\xe3\x1d\xe4/\xd6\x92\xfa\x9dP\x00\xe4\xed\x04\xedI\xfe\xc8\x14B[\xf8H\x9d\x95m[\xb2@\xec_\x10H\x89r\x9c\xd4\xf9I[\x1b\xff\x00\x90\x98\xe1jV\xc1\xdf\x7f\xd7\xedZ\xed\xf1\xd2\x9cr\x91\x86\x1eV\x11{d\xf8.\xfe\x9a\xf5b\xe7\xd5h\xbf\x8eoU\xc7jU\x92J\xdb\x89\x10\xa4\xa1\xff\x00\xc2\xac$d\xa9x\xc9\xdc\x01\xc0\xfd+\x1d\xbayR\xf0\xcd\xfa}Uw-\xc8\xb5\xd2\xe5\xe6z\x99\x8b&gt;J\xdek\x1b\x94\xbc\xf6\xc7#5\x18\xf0;\xed\xc2\xc2;\x0f\xe1X\xb6\xad\x0brSA "\xe6X$+9)e\xb2x\xf1\xf9\xab\xaf\xa3X\xaf\xfd\x9eG\xc9?\xebc\xfb\x17F\xecV\xa3\x9c\r\xdfj\x00\x1b\xbe\xb4\x01\x85\x1d\xc9\xfc\xc5?Q\xe2\x800\xc2\xdc,#\xd4R\x94\xacrT\x9d\xa4\xfdH\xf1@\n\x05q\xde\x80#@\xfbTI\x80\xb8\x00\xf7\xa3\x02\xc8\x9a\xdf\xc7\x93\x8a\x91\x11\x13 \x13\x9d\xd4\x00\x03\xe3=\xe8\x01\xa7[i\xa8z\xdbG^4\x8c\xe7\xcb\x0c\xde!;\x11O\x04o,\x95\x0f\x95\xc0\x9c\x8c\x94\xab\n\xc6Gn\xe2\xa38\xee\x8e\x0b+\xb1\xd7%#\xc7\x8doj\xb9t\xa3^j\r%pp&gt;\xbbD\xf7`\xbc\xb4\x02\x90\xbfMX\x0b\x00\xf8#\n\xc7\xd6\xb9\x93\xaf,\xf4\x15Z\x9a\xdc\x87Ke\xe6+\xf1\x7f\x1c\xa5\x8d\xa0eY?\x97\xefY,\xad\xf4\x8e\x8dWF+,\xabz\x9d\xaf\xee\x9a\xb6*\xad\xb6\x95\x94\xc0l\x84\xe1*\xe5j9\xc6G\xb7\x15\xbbI\xa7\xd8\xf7L\xc5\xab\xd5\xca\xd5\xb6\xb2\xbd\xb2\xe9\xcb\x8cE\xaeB\x98Ay\\\x04\xfa\xa9I\xe7\xbfz\xe9J\xe8\xfd\x9c\xf8h\xack)\x12\xa8y\xb4\xde\x179\xbb\xa2\x18R\x82\x1c{\xd1w\xb2\x80\x07\x03\x1c\x9c\x1a\xc9&lt;XiP\x96\x9f\xb3\xa8\xba}\xd5h\xadi\x15\x86\xee"k\xad\xa9-GV&gt;udr\x00\xcf\x8c\x1f\'\xfck$\xaa\xc4\x8b\x96\xa5\xca8\xc9\xe8o\xc1\xdci\x11\xba)\x0eT\x90\xe0\\\xfb\x84\xc9i\x0bN&gt;E9\x80G\xb8\xf9O?\xf4\xad\xfau\x88\x1c=l\xb7[\xfe\x8b\xbbvFM^d1\xb8P\x00\xc8\xa0\x0c\x15q\xc5\x00\x11\x0e()IR\xbc\xe4}\xa8\x00\xfe\xa5\x00GB\xb1Q&amp;&amp;\xeb\xc1\x1e{\xd0$\xb2h\xba\xf6U\x9d\xd4\t\x89\x07\xbe\xd5$!T9\xc04\x00\xaa]\xfdh\x03\xcd\x1f\xf4\x89h\xf8\xbas\xadI\xd4mlJ5M\xad\x99\x8a\x1b\x81!\xf6\x81e\xc2G\x8d\xc9Cdg\xdb5\x96u\xf3\x94u4\x92\xc40\xce+\x9f\xac\xa4\xb1\x16\\6d\x14\xa1\xe4\xa9\xbcg\x18\xe3\xfcj\xca\xf4\xfc\xe5\x93\xb3Q\xf8\xe129\xa7\xee\xcc\xb5%nKu^\x88O\x83\xc9&gt;\xd9\xab\xe7S}\x14\xd3tS\xcc\x89\xac\x1dQ\xa3\xa36]~\xc4%\xa58\xcf\xa8\xe1\xc7&lt;\xf7\xf1Y%\xa7\x9f\xcb:\xb0\xf25\xc1ch\xfb?Y\xd8\x1d\xb7\x07\x98\xd3\xf1#\xb4\xe9\r8\xd3h\x1b\x8aH\xce\t\xc7\x00\xd1]/yN\xabW\x1b"\xdcF\xcd%\xa8M\x96[1P\xaf\xfb/\xae\x17\x9c|\xc1&lt;\xe4\x01\xee9\x15\xaet\xf1\xc1\xccV\xf2{\xa1\xf0\xfdg^\x9f\xe8\xa6\x8b\xb5?\x1dl&lt;\x9b&lt;w\x9em\xc0B\x92\xe3\x83\xd4P \xf3\xddu\x08Gj\xc1\x9e\xd9\xfb&amp;\xe4X\x05d~R*EF\x03\xa7\xcf4\x00\x0b\xa7\xc6\x05\x00\x15N\x12rh\x015)&lt;,\x9d\xa5&gt;s\x8e&gt;\xb4\x00b\xe1\';\xa8\x02&lt;\xa9\x05\'\xb0\xe6\xa0\xd93BT\x9e{\xd2\xc8\x1a*\x90?\xa8R\x00\x07\x81\xec\xaa\xb1tE\x8a\xa1\xde\xd84\x98\x88\xefR\xb5\xeb:\x03E\xdc5*\xd0\x95\xbb\x1d\xa5z)&lt;\x82\xb0\x92r}\xc0\x00\x9c}\xaa\x13\xb3b\xc9mU\xfb%\x83\xc8=o\xd5=K\xd7\x0b\x1e\xaa\xd6W\xb9\x8a\x95%\x9b\xa2\x1e\x8a\x14\xa2T\x966\x94\x94\xfd\x069\xc0\xfa\xd6x\xe66~_\'S\xd7\xfd?\xc7\xe0\xe6\xdb\x93\xabS\xa4\xa7w\'\x9a\xebE\xe1\x1c\x99v"\xc3\xcaJq\xefR\x03}\x96\x9f\x93\x1d[\xd5\xf2\xa0\x83\x81Pq\xfb$\x98\xff\x00`\x9c\xed\xa5\xf6\x8a\xddm\xe4\x14zjm\xfe\xdbOa\xfa\x13\x91\xf7\xa4\xd7\x05\x91\xc2\xe4\xb8\xfe\x1b:kj\xea\x87_tN\x8d\xba&gt;a@\xba\xdc\x1b\\\xb5\xb8&gt;R\xd2r\xb5!?U\xec(\x1e2\xba\x94\xe6\xa3Y\\c)O\x83\xde&amp;"\xb4\xd6\xd8\xcc\xa04\xdaP=$\xa7\xf2\x84\x0e\x02G\xd8b\xb2\xa6A\xa6\x1c\xc3w\xc2\x93L\x88UD|\x0e6\x9f\xb5\x00 \xad\xe88Z\nO\xd6\x80\x13.\x00{\xd0\x06\x14B\xc6\x15\xc8\xf6\xa0\x0c\x05\xa9\\\'\x92;\xd0\x04Q\xe9\x1b{UD\xc6\xd9R2\x08\xcfz\x00\xd5\xf5x\xf1@\x04z|x\x8d\x97\xa4\xbe\x86\x92;\x95\x1cS\xcaB\xc3l\x81j&gt;\xa7\xcc\xfch\xb4i\xfd\xb1\xc9\x04\xaec\xa9\xdcR\x07\x94\xa4\xf1\xfb\xff\x00uQ+\xf0\xf6\xe0\xd1\nV2\xca\xe7\xaa\xd2n\xd7\xcd\rw\xb7\xca\xbdK\xb8:\xf4gB=U\x03\xb0\xa9\x04``\x01\xed\xd8UvX\xe5\xc34UZ\x8b\xe0\xf3?\xa4)6\xf8\x17\x0b4\xcc\x0f]\x08Z\x92Ob\n\x92\x7f\xbc\x1f\xda\xa9\xd5\xcf\x12L\xec\xe8\xa0\xb6\xb1\xafX\xf4\xc24\x87\x97*\xca}\x07\x14J\x8a\x15\xfe\xcdG\xe9\xfd5\xa7O\xe4p\xb1a\x8bW\xe3\xb2\xf7VV\xf7-7y\xb4-I\x9b\x05\xd6\xd2\x93\x8d\xe0nA\xfdEta|,\xfe,\xe5YE\x95&lt;I\x1a\xf1\x14\xfb{\x82A\xca\xbc\xd5\x8eD\x14e\xf4Kt\xee\x92\xd4\x1a\x9eK,\xc2\xb6&gt;\xe3\x8b\xdb\xf3\x96\xcaP\x91\x9e\xe5G\x80*\x8b5\x15\xd2\xb3&amp;]^\x96\xdb\xa5\x88\xc5\x9d}\xa1t\x0c.\x99\xdb4&gt;\xae\xb7\xb9\xebj\x0bv\xb4\xb3\xbe\xe4\x81\xc6\xf6\xddt\xb0\xa6\x92?\xa3\x9f\xd4\x92Mq\xa7\xafw\\\xa2\xbf\x89\xdd\xafE\n*\xe7\xb6{\x0c\xcf\xf3"0\xf8$))$~\xc4WO\xbe\xcf7\x8cpa\xb9i#.\xa9(\x03\xba\x94p?\xbe\x9a\x93D0$o\r\xa7rY\x8e\xeb\xe4yN\x12\x8f\xf9\x89\xc1\xfd3MK\xec6\x81\xa7\xe7NB\x8a\xa1\xc6H\xec\x07\xae\xa2\xaf\xdff*Y\x16\r7\x92\xe2\x16C\xad)\xbcxV?\xcb\x83@\x82z\x9fZ\x00Idz\x85iQJ\x88\xc1!X\xc8\xfbP\x046K\xf8\xe0\x1a\xa8\x98\xd3:zX\xc8)$\xfb\x9e\xc2\x93x\'\x18\xe4\x8e\xdc.\xf7\x07U\xe9\xb2\xe6\xd1\xec\x9e\xf5\x072\xc5\x01\x86T\xd5HY\xfcZ\x8aJ\x07\xe7qX\x1f\xb9\xa896MEt@5R\xd5\x1e\xf3\x1aKn\xa0\xc7\x94\xb42\xa7P\xa0BI x\xfb\xd52e\xab\xa32\n\xdee\xd6\x1e\'\xe6II\x07\xc1\xa8\xa1\x9ey\xf5oHM\xe9\'W.\x0c\x96\x94-7u\xaat%x\xd8\xb5\x12\xb4}\xd0\xb2\xa1\x8fb\x9fz\x8e\xa6Jp\\r\x8e\xa6\x8aj\x0f\x97\xc1\xbe\xd3\xcd\xcfl-$\x10q\\\xf6\xf0u6\xee\x0e\xcd\xad\x87\x14R\xebIRH\xe4\x11\x9c\xd1\xedi\xe7"t\xee\xed\x0e\xb6\xfbU\xa9\x97\x03\xab\x80\xc0\xdb\xdb\r\x8f\x14\x9d\xf3\xcf\x0c\x94t\xf0_\x04\xa6\xc8\xc3\x93f%@\x10\xday&gt;\xc0U3\x9b|\xb2\xe5\x05\xd2-\xcd\x05\xa2\'k]S\xa6\xd0\x16U\n.\xa0\xb7&gt;\xb6\xb1\xd9\xa8\xeb/\xa9\\\xf1\xca\x92\x94\xf1\xefVh\xe5\xbe\xe5\x1c\x19umWT\x9b==\xb6\xabu\xb5\x80\xa3\xce\xcc\x11^\x90\xf1\xa2+m\x90\xe2\x9c(\npq\x95s\x8f\xb7\xb5\x00"\xe2\xf00jbK\x00\x0f\xa9\xa6\x96[V\x0e\x0f\x14\x9eD\xd1\xaf\x1e\xee\x8b\x8c5\xa5D\x12\x80H?l\x1f\xf0\xa2/\x8eH\xb5\xc8\x8e\xff\x00cS"\x14\xaf\xda\x80)\xf9\xfa\x86l\xc0\xa0\x1c1[\xec\x12\x8cz\x84}U\xe3\xec?z\xa5\xb3Db\xbeFE\xa5\x87\x97\xbd\xd4\xfa\x84yY*\'\xf7\xcdBR\xe3\x05\x89`\xd3~;\n%b;Y\x1d\xbeAU2Hk\x93\t\xb7\x92v\xa1)X\xe4dg\x9a\x89!\x8e\xf5mM\xf2\xd5&amp;\xca\xf3\xa9\x8f1H&amp;+\xcb\x07j]\x1c\xa4\x9cx\xce3P\x91%\xd1\x99P\\\x93m\x89{`e2\x98C\xcbJy\x00\xa8eX\xfb+p\xfd*#\xec\xaa:\xdb\xd2x=Y\xd1\xee\xda\x12\x1bj\xed\x10\x996\xc7\xd7\xc0C\xc0r\x85\x1f\x08X\xf9O\xb1\xda|Usi\xac\x17Sb\x84\xd3\x97G\x1e\xdb\xe2\\\xec3\x1d\xb3\xdd"&lt;\xc4\x88\xae\x96^i\xd4\xe1m-\'\x05*\x1e\x08\xacS=\x05R\xca\xca%\xd0\x1bm\xe1\x91\xdf\xb5gl\xd6\x91\xbe\xd4\x07\x16\xe0B\x13\x92MBV}\x12Q\xfb-\x1d\x15\xa3\x1c\x9c\xe31[J\x86\xf2\n\xf0;\x8a\xad\xc9\xc8|G\x93\xb1:\x15\xd3\xf8\xb0\xe3~9L\xe1\xd6\x16\xda\x9bI\x1f\xf8E*!C\xeeG\xfe\xca\xec\xf8\xba\x1cS\xb1\xfc\x9es\xcbjT\xa5\xeb_\x07J\xdb\x7f\xee\xa9\x1e\xc0W\\\xe0\x87\x94\xd6\xc4)\xee\xdcs@\r\x8asy\xc0501\xea\x02\x92\x92{\xd4X\x10\xe8w_\xe1\xae\xdd\xed\xea\x18)ikA\xfa\xe0\x8cR\x13C\xbd\x96\xe6\xdd\xc6(RW\x95#\x85~\xd5dz+}\x9b\xe5^\xd4\xc4s\xfc\xa9\x01\x0e\xfc\xea\xc0\'\xf4\xac\xae_F\xd4\x85v\x05\' \xe4\x8a\x80\xc2\x02\x1emM\x81\x85\xa6\x80\x11[!\xd1\x85\x0eEG\x03\xc8\xcf{\xb7\x87a\xbc\xe1I\xdc\xda\n\x81\x1fJ\x807\x95\x82%\xa3\xb5\xc4{P\xfe\t|\'\xf8j\xd4KO\x04\xe5QT\xa3\x92\x08\xee[$\x92|\xa4\x9c\x8c\x82@\x83%\x05\x85\x82Ix\xd3Kd\xa6d,:\xc3\xc3\xd4B\x9bPPP&gt;A\x1c\x10j\xb7\x16\xc7\x92\xbf\xd6]\x12\xd2]D*\xb9\\-\xea\x8du@CFl\x7f\x95\xc2\x8f\xca\x92\xa1\xd9{r8P\xed\xc6G\x04F\xdaw.\x11\xaa\xadT\xea\xe9\xf0s\xf6\xb1\xe8\xe6\xb5\xe9\xd4\x90\xbb\x9c\x00\xe4%9\xb1\x13\xe3\xe5L+\xdb&gt;[?Ec\xe8Ms\xac\xaeP\xed\x1d\xfd&gt;\xa6\x17\x7f\x17\xc8\xe5\xa4\xac\x8dH}\x1e\xaar\xe6GqY\x9a\xe4\xd9\x93\xa1:k\xa6\x8b\xb78\xb6\xd6[\xda\xb9j\x08*H\xce\xd4\x0eT\x7f`\x7f\xba\xad\xa2\xa7t\xd4\x11\x9bUw\xa2\xb76u\xa4Kbl\x1f\x81\x99\x02\n\xd7\xeazV\xf7\x03aJJ\x1a\xf9\x8a\x14\xa0;\x00x*&gt;\xe0q\x9c\xd7\xa9\x8c#TTQ\xe3m\x9b\xb6NL\x89\xde\xfe \xaev\xadUy\xd0\xf6n\x9b\\W6\xd0\xe6\xc7&amp;L\x92\x84DP )\x0e#`*XRT\x08\x1f/\xd4\x8c\x1aJ\xc4\xde\xd2\x1e\xa6\xd6S\x1czg\xaa\xf5\xc6\xa8\x9ds{YIAd!\x0eFe\xa6\x83M\xb5\x85\x1c\x80\x07\'\xc7*$\xf1Ds\x97\x90\x9aK\x18\'\x88Vy\x15nH\x18\xdf\x85ri0+}i A\xbd\xa8\x82B_\xdb\x93\xee\x0fqH\x04\xf4U\xdb\xd2\x94\xf3*Y\xe4\x03\x8f\xb7\x1f\xe1S\x8b!%\xf2O\x83\xa5I\n\n\xcejD\x0eqK\xcf\\m\x0b\x0bXT\xa8\xe9\xd8\xb2\x067(r\x14&gt;\xe3\x07\xf5\xacF\xe1\xc2\xc9pL\xd8\xed\xba{\xe0\x05}\xe8\x03bRLi)}?\x94\xf0\xaa\x00Y\xc4\x0c\x07\x93\xd9^\xd4\x00G\xe3!\xf6V\x92\x01\nI\x07\xebQk(\n^\xf5\xa5.\xd1f\xbccGS\x8do;q\xe0UX\xc3,]\x0bZ\x15\xaem\xf1\x8c[e\xca|\x16\x0e~F\xc8RF|\x84,\x14\x83\xf6\x15 \xc1_j\xfd\'\xd4\x08\x97\x165\x84\x1e\xa0\xdd\xafr \xc9m\xf1\x06z\x8aT\xd2\x92\xa0\xa1\xb1(\xc3jNG#h8\xf7\xa38\x1e7p\xcb*\xd1\xf1#a\xb8!\xd8\xfa\x9fCN\x86\xb5e\x0f\xa1\x87P\xfbd\x1e\xe0\xa1\xc0\x92G\xd0\xe6\x94\x9cq\xc8\xd4%\x17\x94\xc2\xb7\xa7\xfaU~\xb8\t\xfa\n\xec\xdd\xb6{\xd8Z\xac\xf3Pc\x07\xfe\xb1\xca\xce\xcd\xdf\xf9\x02\x8e|c\xb1\xe7\xea4\xf1\x97\xe5\x03\xaf\xa5\xd7\xca?\x8d\x9f\xf4\xb9z?\xa6\xda\xb7E\x7fQKHh\xb9\xb9)[\xdf(i\x94pTI\xfc\xa0\x90O&gt;\x00\xad\x9e&gt;\x85L]\x92\xed\x98\xbc\x96\xab\xdd%Z\xe9\x1b\xf7\x9e\xbaH\x97u\x8f\xa64\x13\x1e\xa9S\x81\xa7\xee\xaaI)BI\xc1\xf4\x92{\xff\x00i\\{\x03]\x175\x9c\x1c\xb7\xd1-\xb4\xe9\x86Q\xbb\xd7[\x92\x1dyE\xc9\x0f:\xa2\xb5\xb8\xb3\xe4\x93\xfbS+\xcb\x0f\x07\\\xe8x\xfa\x9ev\x86\x87ti\x17\xd8\xb1\x03\xe8\x8aS\xb4\xbe\nJ\x80l\x9e\x16\xac\x0c\x94\x0epA\xc1\x19\xc0\x19o\xb1\xa7\xa7}H\xbf]\xae7\xcd=\xa8\xed\x97\x15?lS\x8e\xc5\x94\xb8\x01\x94\xc8c&lt;\x12R\x00\x18\xc8\xc6A%9VH\x14\xf1\xc6@q\xe9\xafT\xa1\xf5&amp;\xd5"\xe7\x16\xcf2\x07\xe1\xe6\xbb\x08)\xcc)\xa9;\x12\x15\xea\xb4\xaf\xcd\xb4\xa5H$(d\x15\x01\x93\x9a@hu8\x03\x16,\x91\x80\xa4\xc8\t\xcf\xe8M&amp;\xf0\x81vF,\x92\xd5\x1e\xfe9\xf9\x1c%8\xfb\xd4c&lt;\xbc\x12\x94x,\xebU\xc4\xbc\x82\xd2\xdc\tRFRO\x94\xff\x00\xf4j\xec\xe4\xa1\xac\x1c\xed`\x98\xa2B\n\xbf\xdb$\xb2\xaf\xed\'\x94\x9f\xdbp\xfd\xab\x1eM\xa1\xadR\xff\x00\x86\xde\x1d\x80\xe2\xb0\x87\x15\xb9&gt;\xdc\xd3\x02k\xb1\x12\xa3\xe0\x8c\xf1\x8a\x00\xd7\x84\xb0\x92\xa8ow\x07\x82h\x00\xe3-8[=\xbcP&amp;\xc4^\x8a\x85(\xab\xd2\x19\xcf|Q\xb7#L\xd7r*H\xc6\x12?JX%\x91\xae\xe5\xa7bO\x1b\x96\xdaR\xb1\xd9I\xe0\xd1\x80\xc8\xdc\xad1\rE&amp;\xebg\x87se\x1c\x7f1\xb0\x1c@\xfe\xd0\xe6\x8d\xa9\xf0\xc3+\x18\x1e\xe2\xd8t*-2\x98\x99`\x88\xfc \xc3\x8e\xa9\x97\x98J\x8aH\x1c\x81\xe7\x9c\x82\x0f\xbei\xaa\xe3\xd0\x9c\x9a\xe9\x8a\xae\xd1u\xd5L\xa3N\xb6\xe3\xb0\xf4\xe5\xb3lVc\xb6\xa2\x17/\xd3\x1bJ\xdcW}\xa0\xa7\tO\xd3\'\x93\xc4\xf6\x95\xb6\xdf,\x99i\xed\x0f\n\xd6\xa6S\x1d\x84\xa7i\x07\x81\xfeuf\n\xdc\xb2Yp\x98i\x96p{\x9e\xf4\xc4D\xfa\x89\xa7t\xdd\xc2\xd2\x9b\xbd\xc2\xda\x97\xe5[\x15\xeaBt\x02\x97\x19t\x02\xa4\x94\xb8\x9c(\x00\xa1\x9d\xb9# `\x03\xcd\x00Qw)\x92\x98\x85\x1a\xeb6:\xdc\x95ui\xc9M\\\x935\xef[\x0bZ\x92\x0b{6\xa5\xb2\xd9J\xb7%[\x8eq\x82\x07d\x9b|\x01j\xf4\x8e\xfb\x19\xfbt\xb8Gb\xd5\t\xdf\xc3\xb5!\xb4\xa5\xb6\x9ciYZHH\xe0)D\x9d\xdeJ\x93\x93\x93L\x07\x1e\xa4\x12\xbd:\xb7q\x9fI\xf6\xd4~\xdc\x8f\xf3\xa8\xcb\xa1\xae\xc8\x0ci@JD\x84\x9c\x1d\xc8W\x7f\xa0\xaa\xe2\xb2\xc9K\xa2\xc1`\xa9\xf6\nP\xad\xaam\x7f\x98\x1f\x07\x91\xff\x00\xef\xa5\\\x99SE\x01bZ\xff\x00\x16\x8f\x9b\xb3\xedc\xf7\xacl\xd49\xea@\x1b\x9a\xd2\xd00\xafqIv\x04\xdbN\xadnDIZ\x89\xe3\xcdZ\x06&amp;\x00\x97\xca\x920r9\xa0\x05\xa4\x7f\xbah"\xfb\x01$\x83Mv!\'\x123\xda\x93\x00\x98\x04\x1c\xd0\x00m :8\xa9"Hj\xd6\xc01\xa6n\x8bdlQ\x88\xe8\xc8\xfe\xc9\xa6\xbb\x06Y\xc1 &lt;\xac\x0f"\xacE2\xecv\x82\xa2Jr|S\x10\xfaT\xad\xa3\x9a\x00\x8e\xea\xa9/E\x9fb\x0c\xac\x04\xbby\x87\x1diRB\x92\xa6\xdcP\n\x189\x19\xc7c\xdcx"\x812\xaf\xd2vKM\xd3Yj=\x13&gt;\x03OX\xed\xb7G\xcc8Da\x11\xcb\xa1\x1e\xa6\xccr\x9d\xc7\x93\x83\xdf\x9e\xfc\xd02\x11\xa4\xee\xf7\x19\x10"\xc9\\\x92\x95\xbf\xaeg\xb6\xe7\xa4\x90\xdaT\x98\xe46\xc8)H\x03\tJ\xd4;s\xc19 \x10\x01{\xebp\x17\xa7.IP\xc8\xfc2\x95\x8f\xa8\t \xd4e\xd0\xd7eK\x19J\xfcR9?\x95?\xfcEW\x1e\xcb\x0b\x15\x95)\x13\x9aJ\x16\xa4\x85D\n (\x8c\x9f\x97\x9a\xb8\xae]\x9f\xff\xd9'</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>804981</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Rafael Paiva</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x00\x00\x00\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x02\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x07\t\x05\x06\n\x04\x01\x03\x02\xff\xc4\x00:\x10\x00\x01\x03\x02\x05\x03\x03\x02\x04\x04\x05\x04\x03\x00\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!\x08\x131\t"AQa\x14#2q\x15B\x81\xa1\n\x16\x91\xb1\xc1$3R\xe1\x18C\xf0\xff\xc4\x00\x1b\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x03\x05\x06\x01\x02\x07\xff\xc4\x00-\x11\x00\x02\x02\x02\x01\x03\x03\x03\x03\x04\x03\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x11!\x121A\x05\x13q"2Q\x14a\x81\x06#\xa1\xb1B\xd1\xf0\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xcc\x180`\x840`\xc1\x82\x10\xc1\x83\x18\\\xf3\x9f\xb2^\x9be\xc7\xb3n}\xcdT\xfa55\x8b\x07gT\xa6!\x96\x92O\x81\xb9d\x0b\x9f\x81\xf3\x82\x132T\x07\x04\xe3\xcdP\xaaS\xa9\x10\x9c\xa8U\'\xb5\x1d\x86\x90T\xeb\xcf\xb8\x10\x94\x01\xe4\x92x\x03\t6\xbb\xfa\xe5t\xa9\xa4\xd3\xe6\xd1\xb2\xf4\xa99\x8etU\x10\xa4S\nK`|(\xaf\xc5\xb0\x92u\xbd\xeb#\x99\xfa\x81\xd3#C\\v\xa8\xb4\x89\x92Kq\xa1\xc1\x91\xb8\xc8p$\xac%\xe5\x92=\x80\x0fp\x00\x90T\x01\x1c\x8cCe\xf5V93\xd0G&gt;%\xbaD\xea\xef\xa6\x8a\x8c\xd7i\xb0\xb5\xbf-8\xeb\n)u"\xaa\xd8\t#\xe2\xe4\xdb\x1bT\rK\xc8\x15jJ\xabT\x8c\xebI\x93\x15(*2c\xd4\x9aZ\x00\xfa\x92\x95\x11\x8ec\xe0k\xd6n\xcd\x99\xa2\x04x\xd9\x8a\x9a\xa4K\r0\xe3P\x1d\xec\xa0\xba\x12?$\x02\x01R\x94\xe5\x81\x17&lt;\xac\x03\xb4\x82\x91\xfd\xab\xa8mL\xd3\xe9\xcb\xc9\xb3\xa2\xbb1\x0e\xb6\xa6\x8b\xb4\xf9\xee\xac\xa4\xac\xfe\xbd\xa8#hH6\x00\x00\xab\xa9\x17\x1eRQ\x1e\xa4\xa4\xeb\xa601X\xae\xc1\x9d\'\xe9\xd7R\x9a-\xa9\x92\xe4Rr\xce\xa5Qd\xce\x88\xf2\x9b~\x1bU&amp;\xcb\x97\x06\xd7\t\xbd\xc8\xfb\x8coM\xca\x8e\xef\xfd\xb7Rn.,q\xcc6\x9cj\xe6_\xcdyY\x96\xa1\xa1\x11&amp;\xfe9\xfe\xc4A!E\xf5\xa8\xa1*Z\xbb\x81\xc2\xa0\xe2\x8b\x80\x83d\xa7r\x15\xed\x04\x84\x99\x7fN\xb5O\xa8}!4\x8c\xeb\xa3\x1dEfh\xb5w\xe3\x07\xe4R\xe6f\x05\x87\x1c\xb3\xc4\x94\xad\x97w\xa4\xedG\xb7j\x92\xbb\'j\x80PRq=y\xb5?y\x03Ujw\x13\xa1\xec\x18L\xbd5\xbdM$u;\xdb\xd2=m\xa3\n.z\x8f\x1fr\x7f/\xb6\xcdD\x00I\xda\x9b\x92\xdb\xa0\x02J9\x04\x02RH\xf0\xe6\xe1\xc0C\r\x89\xe2\x180`\xc7a\x0c\x180`\x840`\xc1\x82\x10\xc1\x83\x06\x08C\x06\x0c\x04\xd8\\\xe0\x84\xfc\xdey\xa6\x1b.\xba\xb0\x02E\xce*_\xd7\x93\xad\n&amp;~\x88\xd7L\xd9\x06\xba\x83.\x873\xf8\x9dUQ\x9e%M\xa5(Z\x08XM\xcf)R\xc5\x80*\xe4\x91k\x12%\xcfY/UO\xfe\x15\xe5I\xb9\x17(J[\xd9\xba\xb6\xcb\x91\xe8Q\xd8l\xab\xb2\xad\x87\xf3\x16G\x80&lt;\xdf\xfd\xfcb\x9bt\x94\xd03D*\x8ef\xd6\xdc\xe0\xba\x9dN\xb0\xf9~\xa5R\x91-A\xe5\x1b\x95\x13\xc1)Z\xd4\xa5\\(\x92\x86\x92\x12\x84n\xf7\xdd,\xcc\x91Jk\xc9\x93\xd0\x9dM\xb9\xad\xe7,\xe3\x96\xb2\xeeN\x14\x1aE\x12T9\xd5\x14%\xd7\x7f7\xbc\xeb6_w\xf0\xb6)\xda\x9d\xe0\xa0(\x10\xa5\\4,\x928\x8dk\x1a\x87P\x92\xd0\xcb\xafF1\xd4$\x15\xae;AJJ\x926\xa56\xdf`\xaf\xd3\xb6\xfc\x0f\x93\x7f8\x995!\x19w7\xc1\xfc\x1a\xd6\xd3\xed6\xdb\x93P\xf2$\xb4\x97\x94\xa2\xa4\xb6\xd9t\x05\x0b$]?\x00\xda\xc7\xe4\x8cG\xaf\xd1r\xb6J\x9f\x16K5x\xb5\xd9jq\x0b,G\x8cm\x18\x04\xadWq\xc3\xb57\xba\t\x00%W\x00\x9d\xc0\x8bc&gt;\xf9J\x06\xdaX\xad\x0e[\x89\xfb\xe4Jef\x9b\xa5K\xafK\x80\xfa\xddv\x01b\x14\x97YIP.:\\S\xa1\x00\x15\x05\xac #\x93\xb5H_?\xa8\x03\x84\xfe;V\xcb\xf9~\x9a\xb7\x1bfs\xefGT\x98\xcf\xc8\x98P#\xba\x8d\x8e\xa1\xc0\xb5\xacm\xe2\xe9*M\xaf\xee\t"\xd6\xc6\xc7\x96\xab\xf5\xca\xb3\xac\xe5j\xa6Q\xab.\x9c\xedm\x89\x92\x95\x02\tu\xc7\x18\x0e\x97\x16\xa3\xdb\x02\xf6\x0bZ\xb9P\x04\xd8\x9f\x04\x1fF\xa0d\xcaVm\xaa?6\x99X\x83La\xc6\x16\xd7\xf0\xda\x9c\xc0\xcbQ\xd4\xa0P\xa3\xbd\xc3\xec;\x8a\x88\x1b@J\x96\x08\xf1\xb4\xc6.\xaf{&amp;t\xd7j\x8d\x016\xed?\xca:A\xab9a\x9a6T\xafT?\xcc\xd5\x9aCo2\xa4%)pT\x19\xb2\x96\xc9^\xf0\x95\x12\x90\xe6\xdb\x94\x95-\x03q\xdc\xe8Sr6\xa8\xe9\xfeh\xd3\x88\xb4\xdc\xd9\x02\x8e\xda)\x8cv\xaa\r\xcanSm\xa1N\xecm\xbd\x8bZ\xf9\x0f-`\xb3\xcf\xb5Ke+\xbaGp\x15\xf6\x93\xa5Tl\x8b\x1dR(9\xf6\xaej\xaa)\\\x06c0\xb4\xa5&amp;\xf6J\xce\xe2\x02\x07\x8d\xa7j\xf9\x04\x83\xe0\x86oI\xf5R\xb5\xa8:v\xbd=\xd4\xfa\xfb\x11\xabI\x8c\xa6\x11=-][\\RI\x0e\x14\x82\x82\x85-(K\x8d(\x15\\\xb6\xb0\x14@\x08\xf4\xb9\x15\xb3hN\x9c{u\xb2&amp;[F\xfa\x8b\x7f\'fX\x9a\xd3\tUjsqQ&amp;}\nK\xae\x84\xbf\x11\xe6\x1fi\xb7\xa3\x90\xf1\xb8\xb3\x8e%\tme%}\xd4\\\x82H\x17\x01\xd0?\xaa\x16\x9auOJ\xa6d\xac\xeb2-\x177\xc8\x8c\x15\x1a2\xdfHn\xa2\x90T\x92\xa4\r\xc4\xa1\xc0\xa4)*l\x93e%@\x12R@\xa5\xcc\xbf\xa4\x13\xeb\xb9v\xb5\xa5\x0e\xd6D%\xbb!\xc9Q\xe6G\x96\x85!\x85\x96\xcb\x81\xfd\x81D\xa4\x14\xb2\x14P7\xb6\xb1\xb8\x82\x16@:6X\x9d\xaa\xdaaOE6\xab\x9b\xe9t\xe7\xf2\xeehfW\xf9\x8e5Q\xc8\xcaa\x01m]V\xba\xc0\x8e\xb2\xa6\xd4\xa5\xb6\x92\x83\xf9n%.$,*\xdb\x13)\x80\xd7\x88\x8d\xd4\xe8\xfe\xf3\xa8\xfe\x141\xf4\x008\x18K=&amp;\xfdA3WS\x19M\xdd&amp;\xd6\xfa\xcd\nvm\xa4GJ\xe9\xd9\x8b/M\x0fB\xcc\x11B\x12K\xad\x93\xca\\M\xc8RT\x02\xbd\xa4\x91\xc1\xc3\xa4\xa5\x04\xe2\xddX0\xd8\x8a\x10A\xd4\xfb\x83\x06\x0cz\x9c\x86\x0c\x180B\x180`\xc1\x08b3\xea\xef\xa8\xfc\x9d\xd2wO\x99\x97]s\xbc\xd6\xd9\x87B\xa7-\xe4%\xc5\xdb\xba\xed\xbd\x88\x1fr\xabbL\xc5\x1f\xff\x00\x8a\xeb\xa9\xedL\x9b\x9c\xb2WH\xf9E\xe4\xb5@j\x10\xaeV\xdan^\xc5\xd4$\xa9\xce\xdb,\x1e\r\x92\x91u\xde\xe3\xe4\\^\xe2;\x1b\xa1\x0bOH:\x9bR\xbd\xba\x8a\xd5\xddP\xeb\x0b\\\xebz\xa3\xa8\xcfT\xb3\x05b\xa7P\x06+0\x9d\x05\xaa{\nRv\xb06\xac\x05%\\\\\xdc\x8ff\xd5\x0f\x16\xf7G\xe9/?\xd456\x15\x12\xb4\xa7b\xf6\xd9\x8f\xdc\x86\xdb+\x90\xb5\xfb\x12^#aPRK\x80\x95Y@\'\x8d\xde,\x98\xff\x00\xa3\xf90\x15\xaa\xd4\xaa%-r\\T\x05\x99\xd2\x1c\x8e\xf9\xba\x16\x08S\x8f\xa9\xcb\xabaN\xd1\xb4|X\x90\x9b\xfb\x17e\xd9\x0bJ\x9a\xd6\xca\x82+lLU;\xb3\x17\xb3H[C\x86\x92\xa4\x90T\x01\'qU\xeeT\xad\xc4\xdf\xe9\xb4#5\x93{\xd8N\xfb\xcb\\Z\x81m\xc8s6t\xcf\x07(\xd1hC0\x16%\xd6\xb3%AL.\x01XW\xe0\xa06\x86\xd2\x14,J\\\x1b\xb6\x02\x01 \xac)A_\x98@\xf1dN\x97\xf4\xef3\xe5\xba\xad\x16\x97Zi\xaa\xcc\t(u\x91&amp;*\xae\xc3\x88\xde\x8b8\xd0]\xd4\x85{\x92\xa5\x02\x15e\x10\x92\nA\x0c\x84\xcd\x1c\x97\x943Q\x9d\xae\x99\xfa\x1c\x88\xa5\xa6\x12%\xc8\x0b))e\xce\xe3i&amp;\xe9B6\xa8\'\xf9y\xf7\xdc\xd8\xab\x10\xfe\\\xcb\x0e\xd5z\xad\x9f\x9c\xf4\xa1\xd3:\x975.\x19+owgbv\xa17\x07\x82\xa2\xb4\x05\\\x02\x08\x0b\xbd\x8f\x18\xac\xb5\x81\x00\x11\xcfi{N8,O\x8dM\xcbN:h\xa9OfD\xe8\x94\x8c\xa8\xc4\x04+c\x8bjG\xe2\x9dRP,\xa0\x90\x19Al\x9b\x91rn\r\x8d\x8d\xb9\x8e\xb5\x1b\xd3V\x16w\xccN\xe6hU\x99\x01\x0exh/m\xad\x7f\x03\x80o\xf7\x1f&gt;\x06\x1dm\x1a\xc9\xee\xbdAK\xb5*K,\xcajK\xa1.69RR\xe2\x92\x91s{\xf0\x90\x0f\xd6\xd7\xf9\xc6yu\x0c\x99P\xcc/Q\x935+\x9a\x94]q\xfbdp8\xe0\xda\xdc[\xeb\x8b\n\xf0\xebj\x812\x1f\xaf\xdc=#q\x1c\xca&gt;\x99\x102b\xda\xa8F\xa9!M\x8eJXA\x06\xdc\x90\x05\x8f\xc5\xedo\xe9\x89*\x91\xd1\x86D\x90\xfa]\x98\xa7\xdd[\x89\xd8\xa4\xa8&amp;\xca\x04\xfe\x92?\x7f\xef\x86R\xbf\x10!M\xa1\x00\x0bs\xb4\x01\xe3\x18\xd8\xb1^\x12\xcb\xc9\x16!WI\x07\xc6&lt;\x1cz\xd5\xc6\xa4\xc2\xc65\xf2&amp;\xa9\x96}=r\x0e`\x97\x1d\x15J\x03o\xa9\t\x05\x8e\xf8$$\xde\xf7$\x9b\xdc\x1eG\x83\xfd\xb0\x9az\x83\xf4\x90t\x1bXc\xb7\xa65\x85\xb7\x0ef\xd8\x95d8\x95:\x89}\xd5+skk\xc2\x92H\x16"\xcaB\xd6\xda\x92\xa4($\x8bN\xd3\xfc\xe2\xfc\x14w\xa57\xb9\x05\xb4\xedPO \xf8\xe6\xdf\xb6\x13\x8fR\x8aEey\xba\x9f\x9c\xa9\xb2\x10P\xcd]\xb5\xad\x87\x01\x01\xf6\xee\n\x92ln8\x1e~\xb6\xc5\x91T\xae\xae\xb5\x1c\xcag.\xf6\x15i\tt\x85\x9a\xd7\xd2\xae\xb6\xe5\xfc\xe3\x90\xddj\x13\xb3\xe5"}.S\xef\x14!r\x12\xa7\x9cv\x9d%ns\xb4\x12\xf3}\xc5mHS\xcb]\xd2\x87T\x13~z-\xab\x19\x7fZ\xf4\xda\x99\xa8\xf9l)\x0c\xd4\x1b=\xd8\xce\xff\x00\xdc\x8c\xf2\x14P\xe3+\x1f\nB\xc1I\xfd\xaf\xf3\x8eb\xe9\x1dSd\x9c\x8f\x9e\xaa\xf92l\xf9\xee&amp;\x13\xeeTh1\x16\x84\xadl\x95\xb1c\xdbqW&gt;[Xq\xbb[\xd8\xd1\xba\xca\xac\xdd\xba\xfa4\xf5J\xf30\xf2\xfeI~x\x91\x973\xc4@\xa8N\x9b\x8f\xc3\xd5ZB\x90\xe5\x87\xc2\\\rm\xfb\xa8$\xdc\x9d\xc4\xb7\x87\x7fQ\xe9?\xf8\xca\xcb\xab\xe9\xe6Y^\x0c\x00\xdc_\x06,\xa2\xf0\xc1\x83\x06\x08C\x06\x0c\x18!?\x97\x14\x12\x82\xa3\xf01\xcb/\xf8\x8b\xb5\xdb2U\xfdZ\xab\xea\x9c\xd4\xd4@\xa1\xaa4VPRA-2\x84\xa8\xad?Tn \xfd\r\x88\xbf\x9cu2\xfaJ\xdaR\x01\xb1)68\xe5\'\xfcCR*\x12}O\xb5\x0f\xb2\xa6\x17PjX\xa52\x14\xc1Z\\Om\x1c\x04\x84\x9fw\xe6\xf9\'\xe9\xf4\xc2\xf9?d\xf6\x87F@\xfd\x16\xeb\x1c|\x87Z\x95G\x97!\x01\x15;9-\xd6\xd4v\xae\xde\x13\xb3\x84\x9f\x9b\x128\xdc~\xa4\x1b|\xe8c6\xaf7\xd1\x9b\xa9\xc7eA\xb4.\xc8+]\xcd\x8d\xcf?~qH\xfd7\xe9\x9ed\x93\xae\x14\xcd=\xa90\xb6\xe6\xc8u&gt;\xd2\x85\x0b\xa0\\\xee\xe4\x0fi\x02\xe1^\x08 \x8b\xe2\xfc\xbad\xd2\x96\xf4wK ASj\xef\x06{\x8f~\xe4x\xfe\xf8\xcd\xe4/\xf7\xf8\xed4\x1e\x9fXz\xba\x8c\x9f\xa9\x1a{\x96\xf3\xa3\x055\xdaS2\x9b\x02\xcb\x0f$\x10\x13\xe4\xf2|c\xda\xfd\'FZBh\xd0\xdb\xa6\xb6c\'cqa\xbc\x94m\x03\xe2\xc9&lt;aZ\xcdz\xd9\xad\xb9\xf2\xb4\xeeJ\xc85\x04\xd2 \xc6_\xfd\\\x8e\xf1m+\xf8 \x91\xcf\x8f\x8b\xe2$\xd6\xed\x17\xea\x06\xb1\x08\xd5\xf2\xafT4Z\x0c\xb6\tXmq\xc9R\x8f\xd7\xb9\xba\xff\x00\xdb\xfeq\xe8]^\xb4\x14\x1f\x9e#\xa6\xb7\xea\xd7V\xa3\xf4\xeb\xd9:\x90\x90\xdd*:\x1a\x04X\x14r\x05\xbc\x01\xcf\x1f\xd3\x1a\xd8FU\x8fZ\x93.\x0cXl\xbe\xf2\xc9y\xe4\xa1!K$y\'\xe7\xc0\x1f\xd3\x15\x1b\x98:\xae\xf5\x0c\xe9\xc33\xa6\x1es\xce\xecW\xa8\xc3\x84\xceeA\xf6]M\xfco \x94\x9f&gt;N\x1en\x93\xf5\x9b0k\x8e\x8f\xc4\xce\xa9\x86\xb5&gt;\xf2\x15\xf8\xb4\xb7{4\xb1\xe4\x02\x07\x03\x8e/\xf5\xc7\x06j\x97\xe8\xd6\xa3\t\x8c\xc9_Y1\x88w\xf8c\xcc\xa9\xf5Ml\xda\xe3\x93c\xc7\xfe\xad\x8f\x03\x0b\xa7\xf7K\x89}%$\xfe\xa1\x84\x83\xac\x8e\xb7s\xa7O!\xca6Z\x8b\xdd\x9c\xeb\x8a-\xb6\xfb\x85  \x01ca\xe4\x92O\xfab%\xd1\xce\xb9\xbdCu\x8aS\xb1r\x86\x93\xa6Tc\xc2$\x94\x86[E\xcf\x1f\x98\xb3s\xe0\xf8\xc4G%Y\xf4\x04\xe3\x82\x8b\xc4\xb6\xbc\x99\xf8W!\xb8\x1b|*\xea\xb9O\xc8\x03\xe7\x0b\x07_\xb5(T\xc3\n\xb2\xb6R\xefm\xe2\xb4!g\xdamk\x0b\x1e&gt;\xb8\x89t\xf7\xa8\xfe\xae4\x931\xc4\xcd:\x9fEBb\x07\x02+\rF_q\xa2\xdf\xd3\x9f\x04\x03{\x8e.&gt;\x97\xc6\xeb\xd6UQ\xae\xa0zz{=df\x8e\xd6\x18/\x08\xe0~b=\x97 \xfe\xc7\xfd\xfep\xdb^-\xc7*\xbc\x11+\x1e\x8d[\xb3\xe6T\x9fY\x99p\xb1\xac0\xb3\xfeK\xa8\xa5B{\xdbeFZACN\xa9Cu\x8f\x8b\x13\xb8\x90mn-\xe2\xf8p\xbd%\xba\xc9\xce\x19gS\xb2\x16\x99JnR\xc4\x0c\xfe\xd3n\t\xb7\xde\xc0L\xa4*\xe9\x17\xb2@[n\x02\x91\xf2\xe1\'\x91|%\x95z\xab\xf5\xc9\xd5(\xb3`H\x92\xf2IJc\xb0\xd3\x80\x85\x12\x16\x08\xb0P6P\x06\xdex\xf8\xf2\'\x8e\x81+Y~\x93\xa90s\xa9CM\xd4hU\x18\xb3?\x0f)e\xb5J\xda\xeaW\xc1\xff\x00\xc6\xd7\n&lt;\x80\x12\x0f7\x18\xe5n\xc1\x94\xf6\xed*\xdd\x19\x98\x8d\xf1:\xc4\xc1\x8c\x1e\x9cgz^\xa5i\xfd\x13Q(\x88Za\xd7i1\xe7\xc6K\x9f\xa9(y\xb4\xb8\x01\xfb\x80\xab\x1f\xdb\x19\xcci\x87i_\x0c\x180`\x840`\xc1\x82\x13\xe5\xc0\x16\xfac\x95\x1fZ\xcc\xaa\xe4\xdfS=Z\xcd.\xa5R\xa79\x99dw\xe1GqE\xf0\xdaJ\x10\xdb\x89H\xfd@\xa6\xe0\xdb\x91a\xf5\xc7U\xabP\x00\xdb\xfa\xe3\x9c\x8e\xbe\xab\xfd\x19k\xb6\xbag\x9a\x06\xa2C\x91E\xcf\xf5\xda\xd3\xd2\xd1\x98\x94\xe3\x8d\xa0\xb0\xf2\xca\x98l\x12\xb56\x10\x96\x8b`Y(QRO\x91pk=J\xd5\xaa\x90I\xd6\xcc\xb1\xf4\xdc;s,n\x81\xbe\x91\xb3\xf1!\xcfHm#F\xb2uf\xf6r\xceQ\x0b\xcc\xd0\xb2\xf9*\x8d&amp;z\x9e\xfc;\xa1\xd4\xa5\xa1\xefR\xaeH\x06\xe0[\x91\xcd\x8f\x18\xb8*\xe6G\xa8\xcf\xca\xae\xb3E\x1d\xb7T\xc9\r\xa3i\x166#\x82\x06+\xa3\xd2;"K\xc8\x1a\x9d\x9c\xde\x9c\xfb\xae3\x16\x02b7!\xd5\xeeS\xfb^IIR\x8f+V\xd2\x92\x0f6\x167\xe4b\xcft\x9f4\xe5\xc7\xd3\xf8j\xb2\xc7t\x0b6I\xb8\xb6(\xd5\xd5\xcf\xd4{\xcb\xbcj\xde\xba\xce\x87h\x82u?\xd3G]5\x9ac\xf0\xf2\x02\xa0P\xa8hp\x97\xa4\xcb\xac\x16\x1f\x9c\xe1\xf0TZ\x0bRR&lt;\xf07{|\x8f\x18Eu?\xa4\x9e\xbe"\xea\x13-=\x9a$H\x8b)\x81\xff\x00S\x04\xc7{w\xb7\xdc\x97?\xfb=\xaa\x04\xfe`&amp;\xd6\xf9$\x0e\x823\xa5.\x83_\xa58\xc2\xc8q\xb2\x93\xff\x00a@\x92-\xf4&lt;\x1f\xeb\x85\xcf8h\x02k\xf5\x93+.R^).s\xbe\x9e\xdaE\xcd\xf9\xde-o\xdf\x0c\xd5ZRK\x01\xd5\xbf\xcc\xeb\xab_\xa0\xe4\xae\xbc\x89S\xd9sD5\xce\x91\x9f\x9d\xcat\xf8S\xdc\xa7\xb8\xb6Y[\xebh\x86V\xa7\nS\xb9\xc6\x80\xdb\xc2\x96\tR\x00)\x06\xe4\x04\xa5DZ\x7fEzF\xbd\x0b\xe9z\x83\x94\xa7\xd3R\xcc\x97\x92\xf3\xd2\x8aM\xeeT\xea\xd4\x07\x1c~\x95\x01\xc62\x14\x8e\x96 d\xf2\xdea\xaf\xa9-(\xba\x0f\xe1[]\xc1\xb7 (\xdb\xdd\xcd\xcf\xda\xf8\x92\xf5\x02\x96\xfe[\xa2\xc4\x8d\x1eGr9d\x06\x94\x84\xd9)?6\xb7\x9f\xf7\xc2\xc3\x18\xb5\x85\xc7\x12\xd3\xac:\x85\x1d\xa5P\xfa\xa3e\xac\xf7\x98z\xa9\xa8H\xcb\x94\xc4\xbb\xf8*c\t\x83\x15\t\xde\xa7\x14R\xea\xca\xc2\x7fO\x01\xbd\xb7Q\x00\xabjE\xc9\x00\xae\x935\xaf\xadM \xa1\xc4\xaee\xfc\xb5-\xb8\xd2\xfd\xad\xbbQ\x930-$*\xca\tKKm\xab\xda\xc7\xf4\x9b\x83\xc16\xc5\xbdj\x9e\x8cN\xaf\xd5\xda\xcdQ\x02\x11Tz/% \x05Hd\x90JI\xfa\\n\x1f\xfb\xc6\xad\'L\x94`\x98\xe6\x96\xa8R\x1cN\xd7J\n\xd6\x85\xa6\xfe\tB\x82\xad~ma\x89k\xa9)n\xa7]\xc4\xaeSme\x11\xb4w\xde$\xfa\x05\xd5\xf7V\x0cF\x8auCK\xe4f\x88O\xb0\x1c\xaa\xb1\x168q\xd8\xad*\xdb\x8d\x90\x90\xa4\xed\x06\xe4,+\xe9\xbc\x1e0\xf3t\xaf\x1b.\xe6J=n\x8b\x0e\x96\xb4Q\xa5\xc5\x0f5\x1d\xf4\x14\xdd\x0bM\xc0\x1f[\xdc\x03cq\xcf\xd3\x19="\xd2h\x99\t\xd5M\x8d\x1e\x1bg~\xed\xf1\xe2\x14\x15q\xc8QQQ#\xcf\xce%m.\xcb\x11X\xadTsR\xe8\xb0\x92\xc3m+qLT\x81s\xf2x\xe6\xff\x00\x7f\xae;R/\xbd\xb5\xec|E\xefV\x15\xe8\xf3\xaf?\x99E&gt;\xa3]5\xce\xe9\xfb\xaa\xd9\xf9|V\x90\xc5*\xa2\xca\xeaP$\x8d\xcd8\x90Vn\x84\xabj\x86\xe1\xcf\xb4\x10\x08\xdbk\x12\x06=\x9d\x1dQs\xeex\x984\xe7)\xc7\xad\xd4\x9f\xadNm\x881`Dst\x85)D%\xc3\xdb\xfdd\x95(\x10\xa5\x02\xa0\xa2,\x0f!\xe1\xf5a\xd0z\x0e\xad\xebNPrdF\xbf\x03P\x82\xfb.&lt;\x12\x0f`!N,\xd8\\\x10Uv\xc6\xef\t\x17\xf1q\x86\x7f\xd0:\x95\xd1\xceS\xd6\xa9Zi\xa4\x99Y\xd9\x15\xbae)\xe6*Uj\xc4K\xc8n\xa2\xda\xd4\xbb\xb6V\x90\xa4\x02\xd0y$\x0e\x07i\x16\xbd\xd4\xa2\xe2\xfb-p\xac\x9d\x13\xdb\xf7\x95\x06\x8c\x85Sr\xa9*\xbd\xff\x00n\xc2Z\x0fL9_;d\xae\x9e\xf2fQ\xd4\x8e\xc0\xae\xd3r\xe4H\xf54\xc6@J\x10\xeaZ\x00\xa0\x01\xc7\xb4X\x1bqpq\xbf`\x00\x0f\x181{*\xc9\xd9\xdc0`\xc1\x82r\x180`\xc1\t\xfc,Y\x1b~N(\xaf4i\x8e\x9be\xda.\xa2g\xbdL\xd1\x1a&gt;s{45\n\x04Z5Q\'cib\x18\x08t89B\xc9yF\xe9 \x8bq\xcf8\xbdE))\x1e|\x0f8\xac=H\xd3\x8a\x0ee\x95\x99t\x9a\x1ac\xb92.r\xaa0\x96\x0b\xc9ea\xa4\xcbt4E\xc8\xdcC\x05\xab\xfd\x01\x17\xf8\xc57\xacTm\xa1u\xe0\xcd/\xf4\xd6B\xd3}\x8a\xc3a\x87\xfa1&lt;\xe8Es\xe8\x999\x19\xa2\xbfHE$ML\xe2P\x01\x044\x89n\xb6\x06\xf5\x9d\xce\x84\xa5\x96\xd2Ue\x1fh\xe6\xc9 2\xf4\xaa\xfdF\x11 \xcb\t\n\xe1\x03u\xac&gt;1\x88\xd4]\'\xa2d7\xb2\xeeU\xa4\xd1d\xc9\x8dN\x80\x88\xf1\xa2\x00R\x90C\xae:\xe7p&amp;\xca+%n\x0b\x80B\xbd\xc4\xf1q\x8f5*\xb3\x1a\xa7\x05p?\x0e\xe2_\x8c\xefh%m\x84)IH\xb0V\xdf\xbf\x06\xdf\x17\xc6r\xd4\xe9@7\xc8\x96\xf587\xb1\x03\x89:\xe9\x9dQ/0\xa7+\x13\x96\xa5l\xb2S\xe7\xfd\xf1\xb6\xcc\xcc\xd4&lt;\xbb\tO\xa5\xe4]-\xddi*\xe4~\xf8\x84h\xb5d\xb5Mj\x03\xef\x05*\xd7\x17$\xdf\x8f\x18\xcc\xd4+Tf\xa0w3\x04\xb5\xa1\x84$oJPJ\x9c\x17\xb1\xf1\xe0}\xcd\x87\x1f8s\x1a\xd2+\x0b\x0bB\x06\xea1y\xf5\x1f\xf53\xa4\xf4\xed\x93\xa4T\x9c\xa7="\xa0\xfbJn\x95\x01\xb4\xd9JAPOp\x0f\x8b\x9b\xf2~\x83\x0b\x1e\x9a\xfa\xc0g\x0c\xd1\x90\xa9\xd4\xb7\xe3T\xd8\x9a\xe2\x96\xa9\xf0\xe6\x8d\xca\x8e\xb4\xee\xbd\x88\xfdH\xd9e^\xc0\x8eA\x1cr\xe0ui\xa6\x9a\t\xadt\xeauR\xaf\x90Z\x91R\xa4%J\xa5&gt;\xa7\x94\x8b7t\x95{A\xb2\xc7\xe96W\x8f&lt;s\x84\xfb_:Pz~\xa85L\xca9z\x0cj\xd4x\xed\x916\x9f\tM~!\xa5\xac!hq6\x00\xb8/\xc2\xac\r\xbc\x9f\x81\xed\xd9\xc0\xef&amp;g\xad\x95z\x06\xb49\x1f\x93\xf9\x9b\xc7H\x9e\xadT\x8dt\xd6Z\x9eFz\rE2`\xa8\xa2\x04\xaa\x93e\x1d\xfe\xd8 \x14\xa3\x92\x94(&amp;\xdbM\x8d\x88\xe0\x1c:\xf0\xb3\r.\xbd\x0cLZ\x1bHu!\xc0\x7f\xf1\xbf6\x07\x15\xc7\xa6:?\xa7\xdaY\xa9\xcd\xe6*\xc6]f-u\xb2\xe3a\xd6\x8a\x92\xb5\x94\x84\x82\x92\t\x16\xf9\xe4\x8b\xfdI\xf2\\M6\xd4j-b\x01\x8bL\x96\xd2\xd6\x8b\x07\x12\x85\x83\xb2\xf7\xe3\x8f"\xe1V\xfd\x8e&lt;]cx?\xc4\xea**\xa9=\xfc\xc9y2\xc1\x1d\xaa\x7fox\x04\xd9\xce\x02\xad\xf7\xc6\x06\xb3\xad\x93\x16NQ\x85\xdbj\xca\xdb %v\x0b\xb7\xfa_\xeb\x8cMN\xab24#\xbd\xc5\x14*\xe7rnH\x1f\xbf\xc0\xfb\xe3P\xa6@T\x8c\xc6*\x0f\xa8]N\x02\x80\x14\x7fP\xf9\xbf\xfab \xf6(^\x93\xc9\xef!\xbf\xdb`f\xa1\xd7\x16\xa0F\xc9/d\xc9\xf3\xb2Rs\x032+\xcb\x8d*;\x8b[A1\xd4\xce\xe5$8\x93d\xb8\x14\x84\xa9$\xdc\xf0\xaf#u\xe6\xefL\x1d9Ek\xd4\xaaN\xafi\xfeX]&gt;\x83]\xcb\xc8\xac\xba7\x05\x16-\x1d\xe8\xcaAPH\n\xba\xc8\x17\xb7\xf3\x7fLE\xbdG\xe4,\xdd\xa9yr\x06@\xa3\xd1\xdbv}.\xb2\xe5jA\xee\x84\xa8\xc7m\xae\xd2\xb6\x95\x9frI*\xb0;\x7fE\xac\t\xb6\x1f\x0fH\xfd:\x8bI\xa4V\xb3\x90\xa76\xd1n\x97\n\x03\x0bj\xc4#z\x9c\x90\xe3{\x87\x9b$\xc7\xbf\xdc\xe1\xecj,\xb7=I?H\xe7\xf9\x11;\xf2+\xc6\xf4gQ\xf7?\x1f\xe4s\xfe#\xa4\x05\x85\xb0`\xc1\x8d&lt;\xc7C\x06\x0c\x18!\x0c\x180`\x84\xf9pSs\x84k\xab\r=\xa2i?TOf\x8a\xcd9-\xd23\x9b\x7f\xc4i3\xd4HLZ\xaa\x19\xecKj\xe3\x90\\e-\xba\x07\xc9B\xfe\x9c&lt;\xa3i\x16\x18\x84\xba\xf5\xd0%u\x07\xd3\xfdS-\xd2\xdeS\x15Xc\xf1T\xa9m\x9b-\x87\x90\tJ\xd2~\x0f\xfc\x13\xf5\xc2\xf95{\xb4\x95\x1d\xfcFq/\xfd=\xe1\xbcy\xf8\x88\xdfRT*\x02\xa6\xe5\xd9t\x89\xf2d\xb2\xf2\xddZ\x10\xd3\xbd\xdd\xa5\xb6\x17\xb7\xe6\xe8@\x05d\xab\xc0\xdb\xcf\xc6#Zl\xe91\xebn\xa1\xc9\xe8;\x96\x15\x05\x9d\xb6\'\xdc\x10O\x9e\x12=\x87\xe4\x11s\xe7\x0b\x9fL\x15}y\xcc\xb5\xac\xc9\x985{T\x13Q\x89L\xab=Ik\xda\xe2\x19GmE\x05\xc5\x1b\\\x11u\x0e8\x05\x17\xf7x\xc4\xba\xdet\x87+4\xb6\xb5H\x92\xa6\xe3\xa9N\xc7*\x8e\xa0\x96[J\x8a\x1b\x01k?\x05L\x80\r\x80\xb8\x1f8\xc8d\x06$u\rMuOWY\xe8m\x8f\xcfi%G\xab!\xa5J\x95\x16C\xb6\x84\x87\x1c\'v\xd4\x9b\x0b\xda\xc4\xf8\xbf\x8c+Z\xed\xea\x07\x91\xb2\xfdeOWe\xcah\xb3(\xc7\xfc\x1bo\x05w\x10\x087\xdb\xb7u\x94S\xfay\xfdV\xfa\xe2U\xaa\xe6\xc4\xd7)\xf2V\xe0m\xa8\x1f\x84\x08\x94\xd2\x8f\xba\xce\'r\x05\xc5\xbe\t\xf1c\xc7 \x1e1\x14R\xe8\xfaw\x96\xf3\xd4\xec\xc7\xfc\x16:\xa6%6[\xcbF\xe2E\xc6\xe7\x13\xb8_\xf5\xa8\x0b\x8f\xbf\xd3\x11\x84n\x0e\xe7E\x8a\xee\x013\x0c\xf7T]k\xf54\xb4\xd1\xbay\xd1\xd8\xf9F\x8a\xb6\x92\xcf\xf9\xa7&lt;\xb2\x98\xee,|\xa9\xb48\x95*\xd7\xbd\x94\x94\x9e\x00\xe58\xf7M\xd2~\xbd\xa8\xf1Q\x1e\xb3\xd5\xa6P\xa8\xd4\x08\xd8f\xc9\xab:\xb9\x10\x91rHm\xc2\x85*\xc6\xd6&gt;\xe4\xf2\x00\xfb\xe3\xd7\x9c\xf3\x05j\xb4\xc3\x89\xc8\xd4\xb599\xb4\x87\xa2w\xae\xb6\x81\xb1\xb5\xd2\x01\x04\x11\x7f\xbf\xd0aX\xd4\xac\xaf\xd4\x15_5*mER\x99\x98\xb5\xa7\xb9\x1e%;o\x08\xb1\t!\xb4\xf8\xda\x10\x05\xcd\xf8\xe6\xf8\x9c9a\xae\x9d\x9f\x93-\x06@\xc7\x1aE\xd8\xfe$\xdf\x99r\x7fZ\xf9\x11\x973\r^\xa9\x95\xb5N$r\xa3.\x9a\x8a\x82URH \x15\x16\x83\x81+W\x03\xc0R\xaf\xe0$\xf8\xc7\x9fK\xfa\xa5\xd3\x95\xe7\x055M\xa7\xcf\xa2&gt;\x12\x18\xa8\xd2&amp;\xb2\xa6^\x86\xe7\x956\xb4\xaa\xcaIO\x9b\x1f \x8ck\x9a&gt;\xce\xb1dI}\xec\xd4\xf3\xaf\xd2\xaa+\n\x98%\x02V\x1d$+w\x06\xe1G\x9e\t\xf96\xc6\xc9\xaf\xd9;K\xf3\xfb\x11sL6[j\xafIJO\xf1\x055\xb9il(+aX\xe4&amp;\xf7\xe3\xc5\xce#f\x07\x8dh\xca\xfc\xab\xba\xfe\xb3\xc1\x8c\xa6R\xd4\x88\x95\\\xb6\xd4\xb7j\n\x93u+`I\xdc\x05\x8f76\xbf\xc7\xc7\xd7\x19\x0c\xbd\x98Z\xacf\xb6\xd1)\xa7[\x8e\x15\xf9I$\xa1+W6\x05A@\xda\xe9\x1f\xbf\x8ey\xc41\xa4\xb9\xbe\x96\xd6S\x87\x97\xe32\x8e\xca\xa1\xac:\xb0\xaf}\xc96\xe4|\xf2x\xf8\xbf\xdb\x136@\xafF\x93SN_\x9d\x97\xd7!\xc7]\x1274\xad\x8el\xe7\xc0\xdc\x9d\xa7\x82H\x06\xe3\x92&gt;\x06;Pf\xb0n&amp;\xd6\xaf\xb4L\x93r\xa4\xe8y\x92Um\xb8\x19\x95b\xa0\x86\xd7H\x89\x12\x1b\xa1N:V\x82\xda\xb6!\x02\xdd\xd5&lt;\xa2\x908\xb9&gt;~qe=#hK]&lt;h}/O\xddm(\x9cJ\xa5\xd56\xbb\xbc\t\x0eZ\xe8\xdd\xfc\xfb\x10\x947\xbb\xf9\xbb{\xbeq\x0b\xf4i\xe9K\xa3\xbd3\xe76\xb5\xaavc\xaf\xd7s$\xa4\t\x8eG\xacJ\x0b\x8d\nc\x89\xdc\xea\xd0\x8b]D-J\xdaT}\xbeG \x10\xda\xa4\x0b\x02?\xa65x\x98\xe6\xa5\xdbw\x99\xdc\xdc\xb1~\x95\x06\x94\x7f\xb9\xf7\x06\x0c\x18r#\x0c\x180`\x840`\xc1\x82\x13\xe1\xfa\xdf\t\xa7S\x1e\xbc\x1e\x97=5f\x9c\xc1\xa5z\x8d\xd4\xed99\x92\x8d\xde\x8d.\x99\n\x9b*H\x12R\x8b\xf6{\x8d\xb6[*\xb9\x00\xd9\\\x1f8\x88\xbdy\xfdX\xa2t\xc3\xa7\xeft\xa9\xa0y\xd1\r\xea&gt;d\x8cSV\x9b\x05\xe0\\\xa1AP\xe4\xdc~\x87\xdc\x06\xc9\x1eR\x9b\xab\xe4c\x9e\x86tt\xebf\xbc\xe5\x0c\x8e\xedP\x99\x95\xac\xd3\x11\x95\xbf \x15\xa9\xd7\x1cx\x05\x02U\xe4\xd9D\xdf\xc7\x17&lt;\x0cHja\x8e\xd6\x9e\xc2/\xfa\x85\xfdR\xd2;\x99q\xda\t\xa1T|\xf1\xd2j\xe5T\x90\xec9\xd9\x80\xcd\xadD\x91b;+\x98\\\x90\x08\xb8\xf1g\xb6\xf1\xf0&gt;p\xbei~\xa3\xd5\x11P\x9b\x92\xb3|\xa8\xf4\xea\x8d\x1c\xaa&lt;\xd8\xaf\x92\xb0\xa7\xbb\x89I\x04\xdc) \x04\x12\x0f7\x04rop\xf0\xd3!\xc7\xc99\x12\x97\x92\x19p\xa5\xaae=\xa8\x16\xf9=\xa4\x04s\xf7;qZ\x1e\xa1:e\x99r\x06\xa6\xcc\xd5\xdc\xac\xd2\xae\xe4}\x93c0\x94\x86\xe4\x92lV\xa2\r\xf9\n\xdex\'\xddo\xb8\xc4\xde}\xd7\xe2n\x1d\rT\x8dI\x8a\xbe\xf4Y\x11\xa1\xa5\x9a\xc3]\xba\x85Em\xc9@^\xd5\xa4%\xa0\x9by\xfdEA6\'\xe8O\xd2\xf9\xfd1\xd3l\x93P\x86\xcd5\xaacj\x08\xdb\x1dKq\xd5\x82\xda7,\xa9+\xf6\x92\xa0\xa3\xe4\x8f\xa8\xfa\xdcV\xfc\xee\xbc3xv4\x97\xd4\x05F$\x8b\x87\x14\xab\xb2l\x08\xdb\xb0$\x90\x08$\\\xa8\xff\x00\xa8\xc4\xfb\xd2\xe7\xa8\x06]r\xac\xfc\n\xfc\xd8M\xbd&gt;&lt;\xa7K\x12T\x84\xa5\xf5\x06\x94\xabo-\x92\x85\x12\r\x82\x8aE\x89\x07rT\xa0Y\xa6\x82\xbc\x11+\x1f-@\xd0\x8e\x9d"\x97H\xc8UYt\x82\x86\xd8ZYvK\x85\xe6\xcaZh\x02\x94\xa17\xdc\x01I\xfb\xed&lt;\x1e=\xd71\x9e\xabk&gt;\\\xa4T\x9b\x99O\x8fg\x83\x008\xebO)d\xbb\xb57&gt;\xe2M\xc8I\x00|\xdf\xebkj\x1a\xf3\xd4^P\xa9~.m\n\xbfL\x12&amp;\xaaBV\xc3\x0e/s\xc9L\x87T\x95\xa1a6P\x08Kj\x1eE\x9d\x04\xf2\xd8(Uk\xda\xd6\xedc5\xba\xdag?\xd8K\x88%[\xca\\\xed\xed\x07\xdc@\xf3m\xdc\xdf\xff\x00\x1f\x1c\xe3\xb7uU\xf6\x08\xd5\x19\xfb_\xa8\xc7\x12\x9bZ\x9f\xa9Y6e9\xf9\xb2\xc4\x96\x18K\x8c\x94\xc7;T\xe07\xb1Y\x1eT\x12-r\x00\xe4\x9b\x81\x8f\xde\xbd\xd3\xf6]\xcbYbT\x9c\xd14\xb0\\\xa5\xb8T\xcb\xe3\x9d\xe0\xddm\x94\xda\xeb6\xfb\x11a~x8\x8a\xbaj\xd5\x8a\xddk;\xd3\x1a\xcc\x90d\xc5\xa7N|S\x90\xa5$\xba\x86\x88\xed\xf1\xdbO.\x0b$\xa7m\x8f\xb8\xf3\xf1\x89o\xa8\xede\xc9Y&amp;\x82\xc9\xcd\xd3\x9b\x9c\xb6\x1a*\xa7\xb0\x93u-h\xee\x8d\xd76\xdcOkj\x94n=\xf6\xb06Q\x9a\xaa\x85\xb4\xec\x8ebw\xe6\xf5\xdb\xc1\xe2jyV\x0bYC0Kn`K\xabRR#\xa47`\xa2\n\x0e\xeb\xdcx\x03\xfb\xdb\xf7t\xbd,\xf4\x9e&gt;\xb5uWM\xa8\xc5\xa6%\xea6YaU\n\xaa\x96\x06\xce\x14\x92\xca8&amp;\xe1N%\'j\xadp/kb\xb8\xb4wS+:\xa5Zk/e\xc7\\q\xde\xfaK\xee\x02V\x88\xec\x90\xa0\x92\xb5\x80-\xb5?7\xf8\xe0\x1b\x01\x8e\x83=.z]\xa2\xf4\xd9\xd2\xc5\t\xc7!\x03_\xcd\x10\xda\xaa\xd7%\xac{\xd6\xa7S\xb9\xa6\xf9\xe4\x046R-\xf0J\xb0zu\x02\xcb\xcb\xf8Y\x1eVAZz\x07\x98\xc8\xe0\xc1\x83\x1a)Q\x0c\x180`\x840`\xc1\x82\x13\xe0\xddo\x18\x88\xba\xd8\xea\xebN\xfa(\xd0\n\xd6\xb6\xea\x04\xe6\xc1\x89\x1c\xb7H\xa7o\x1d\xc9\xf2\xd5\xc3m y#q\x05G\xe1 \x9c/\x9e\xa3\xde\xbd]\x11\xfa{&amp;FG\x91\x9a?\xcf\x9a\x8c["\x1eE\xca\x8f%\xe7\x1b_\xc1\x94\xf0\xba#\'\xeb{\xab\x8e\x13\x8a&amp;\xf5\x1f\xf5\x80\xea\x17\xd4\x1b&gt;$\xea\xd3\x10\xe84\xfa2\x92\x98\x19N\x92\xe2\xd4\xc4 \xbb,\x15,\xdf\xb8\xe1\xb7*\xfb[\xe9\x89\xa9\xa4\xda\xdf\xb4S+)iC\xd3\xcb~$Y\xd4\xa6\xb3\x0c\xfd\xab9\x8fY\xf3UA\xd9y\x8f3V_\x9fR|\xa9N+s\x8a*\xb5\xcf\t\x1e\x00\xf2l\x065\r,\xd5\xa8\xda}\xab\x19_X\x9b\x80\xe4\xa5\xe5\x8c\xc7\n\xad\xf8d\x1b)\xe1\x1d\xf4:R/\xc5\xc8I\x1c\xf1\xce5:\xcdej\x92\x1c\x90\x90\xe2\x15\xcd\xc7\xdf\xff\x00w\xc6\xafR\xabK\xa3\xcfP\x89\x05\xe56\xa3pG\x08\xdap\xf5\xdf]f\xb1\xdag\xf1\xac\xb8d\xfb\xa4\xf2\x0e\xe7C\xb5l\xf1G\xcfy&gt;\x0e\x7f\xc9\xb3\x116\x99Z\x84\xcc\x98\xf3"/zV\xdb\x88\nm\xe0G\xf2\x94\x94\xf3\xf7\xfb\xe1}\xeaF\x80\xceq\xca\xd2\xe2Jgq1\xf6\xb9\xb4[\x8f\xd8\xf3\xf2x\xbf\xc9\xfbb\x1b\xf4j\xeb\x01\x19\xd7I\xdf\xe9\xdf2\xd4\x02\xea\x19U\x1b\xa9!\xf7\xbd\xd2\xa9\x8e,\x80\xdaA7=\x95\x1e\xd9\xb0\x01(S rM\x99\x8dS\xa6\xd3\x11Hu\xf0\x82c\x91\xc3\xaa\x1c\xb2~\x8a r&gt;\x8a&lt;s\xcf8\xf9\xbeEVQ{+x3\xecX\xce\xb9\x98K`\xecD\xa6\xce\xa6\xf4yy\x136\xb9*\x14u\x88\xaf\xa8\x94\x85\x01\xec77\x04\x8f\xff\x00s\x88\x9c\xa1\xf6\\D\x98r\x16\xd3\xad8\x16\xd3\x8d\xa8\x82\x85\x03pA\x1e1b]Ih\x9as\x0b3\x1c\x91M\\\x84\xaa\xfb\x02\xaeU~M\xc7?\x16\xf1\xf1a\x84GR2\x82\xb2\xa6br\x9e\x84\x94\x00/n\x7f\xe7\x0f\xe2\xdd\xd4:I\xe6Qf\xe2\xfbm1\xc3P\xb5\x111\xfbNf\x87\xdd\xda\xca\x9bmN[rR\xa1b7\x0ey\x16\x07\xeba\xf4\xc7\xe3\x1f=j\x12$\x99\x8b\xae\xa9N^\xe5DX\x9e-\xf09\xff\x00\x9c~l\xc7.\x1b\x01\x7f\xdb\x19\x8a\x06Q~\xaa\xfa[&gt;\xd0O\xba\xff\x00L4\xf6*.\xccDT[\x89\xbdi.\xaek\xf3\xec\xa5\xbc\x92P$Epl\x9c\x94\xaf{b\xe0\xedJ\xb7]$X\xf2\x08U\x94nO\x04JZk\xd3\x96\xa6\xea&lt;\xa7*:\xb9\x9e\'\xbf\x16R\x96\xb7\xe3\xb3!h/(\x9d\xc7z\x81\xe1$\x9b\x94\x81b@\xbf\xc66\xde\x944\x86\x91G\xa5\xb1.\\d\x05?\xeeXU\xed\xc0P\x1c}n\xa3\xfe\x98`dP!\xc2-1\n\x0e\xd2\x05\x94\x10-\x7f\x1f\x1c~\xf8\xa9|\xcb\x9c\x90\xa7B?G\xa7\xa6\xc1#fn\x9d*h}\x1e\xbb\x9ah\xbaW\xa6\xd46!\xb1&gt;|Zkm\xb0,T\xf4\x87\x10\xc0qJ\xe5J)\xdd\xb8\x92o\xb58\xe8N\x95N\x87E\xa6G\xa5Ah!\x88\xac!\x96P?\x95\t\x01)\x1f\xe8\x06)[\xd2\xce\xb7\xa6Y\x17\xac]&lt;\xa6j=Y\xa8\xee\xd6jr\x93F\x0f\xb9\xb5\x0eKLU\x86\x93\xcf\x9f\xcc[v\xf8\xdf\xb3\xe9\xc5\xd9\x0b\x11\x8b\xefL\xac\xa6?Q\xf3\xccO\xd4Y}\xfe\x85\xec8\x9fp`\xfd\xf0b\xce!\x0c\x180`\x840`\xc1\x82\x13\x87\xfc\x94\x83/Y\xe3\xd0\xa4)N-\xb9\xaaT\xd9\x0f,\xadr\x14\x91\xc9Q&lt;\x9b\xdb\xc9\xc6\xbf\x9ckSW\xaa\xf9\x89\x1d\xe5Y\xe7\xca\xd5~yI\xb0\xfe\xca80a\xf6\xfb\x07\xcc\xa1\x1c\xde~?\xeaf\xe9\x12\x05J\x80\xda_\'qN\xed\xc1 s|z\'S\xdb\x91O1_*(@\xdc\x00Y\x1f\x180bu\xed\x14\xff\x00\x91\x9f4oSsf\x83\xeaM\x1fT4\xfer\x99\x99M\x90]\r)gd\x86\x8an\xe3+\xf3\xedZII\xb7#\x82\x08 \x11rY\x1bS\x18\xd4}?\xa3\xe6\xea|W\x99j\xadK\x8fQ\x8a\x87\xc8\x0bm\xb7[\x0b\t6&amp;\xca\x01V\xe0\x91\xe7\xce\x0c\x18\xc7\xfa\xea(\xb8\x1dO\xa3\xff\x00I\xbb\x9cF\x04\xf1"Ma\x8cb\xb1f{`;\x1dN\xfe\x1f\xb6\x0bN\'\xb4\xb5\xaa\xe3\xf9\x15d\x11\xed\xf6\xf8\xf6\x8b\xdc%}A\xe9\xad+82s\x95!}\x85-\xad\xe5\xb7\x876\xfaq\x7f\xae\x0c\x18\xa5\xa0\x9ftK\x1c\xc1\xc4\x82\xe1@Dk$\x9b\x80\xbbq\x89\'J\xa1C\x91Za\xb7\xda\xbf\xf3&amp;\xc3\xc1\xbf\xf7\xc1\x83\x0fe}\x92\xa6\xaf\xba7\xda[\r\xb8r\xe1\xd3b\x00P\x12\x12\x14\xa4\xd8\xde\xd7\xbd\xb9\xbf)\xfe\xf8\x94\x18\xdc\xfdQ\xa7\xdcuG\xba\xbeJ\xd4U\x7f\x16\xe0\x9b\x0f\xe9\x83\x06)\xd3\xb4\xbb\xa0q\x14\x8dm\xea#;\x0e\xbd\xaa\x11\xb2\xa5I\xfa{Y\x0e\x97\x025\x10\xb6\xe1IL\x80\xea\x1fT\x8b\\\x80\xb2\xe3\xc5;\x87;\x1b@\xfbc\xa6\x1fK\xbe\xb1k}mt\xa9M\xd5L\xd9E\x10\xeb1e\x1auUm\x91\xdb\x92\xea\x1bB\xfb\xc9\x03\xf4\xeeJ\xd3q\xf0\xad\xd6\xe2\xd80cy\x8e\x00\xc1\xab\xe2cn$\xe6[\xf3\x18\xec\x180c\xd4\xf3\x0c\x180`\x840`\xc1\x82\x13\xff\xd9'</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>45489</v>
+        <v>45492.67216435185</v>
       </c>
     </row>
   </sheetData>
